--- a/data/task2_train_reformat_cleaned.xlsx
+++ b/data/task2_train_reformat_cleaned.xlsx
@@ -378,7 +378,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1、支气管炎、肺气肿;2、左肺上叶肿块考虑周围性肺癌;左肺门淋巴结增大,考虑为转移;3、右肺中叶改变,考虑为发育不全;4、右侧肩胛下内侧弹力纤维瘤;5、气管憩室;6、甲状腺右叶低密度灶;胃窦壁增厚,请结合临床。左肺上叶可见类圆形肿块影,大小约2.0CM×3.0CM,CT值约32HU,增强CT扫描:三期CT值分别为43HU、53HU、75HU,可见部分支气管分支闭塞、狭窄;右肺中叶体积减小,见片状高密度影,内可见轻度扩张支气管影;两肺透过度增强,两肺野内见多发囊状透光区;两肺纹理稀疏、紊乱。左肺门淋巴结稍大,直径约1.4CM。纵隔内多发小淋巴结。两胸腔无积液征象。主动脉及冠脉钙化。右侧肩胛下内侧见片状软组织密度影,约为2.2CM×5.1CM。气管憩室。甲状腺右叶密度减低,强化程度低于正常甲状腺组织。胃窦壁增厚。</t>
+          <t>1、支气管炎、肺气肿；2、左肺上叶肿块考虑周围性肺癌；左肺门淋巴结增大，考虑为转移；3、右肺中叶改变，考虑为发育不全；4、右侧肩胛下内侧弹力纤维瘤；5、气管憩室；6、甲状腺右叶低密度灶；胃窦壁增厚，请结合临床。左肺上叶可见类圆形肿块影，大小约2.0CM×3.0CM，CT值约32HU，增强CT扫描：三期CT值分别为43HU、53HU、75HU，可见部分支气管分支闭塞、狭窄；右肺中叶体积减小，见片状高密度影，内可见轻度扩张支气管影；两肺透过度增强，两肺野内见多发囊状透光区；两肺纹理稀疏、紊乱。左肺门淋巴结稍大，直径约1.4CM。纵隔内多发小淋巴结。两胸腔无积液征象。主动脉及冠脉钙化。右侧肩胛下内侧见片状软组织密度影，约为2.2CM×5.1CM。气管憩室。甲状腺右叶密度减低，强化程度低于正常甲状腺组织。胃窦壁增厚。</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.胃体部胃壁增厚,考虑为胃癌,侵及浆膜层,合并小弯侧及腹主动脉旁多发淋巴结转移,胃左动脉供血;2.肝左叶小囊肿;3.右肾上极小囊肿。胃体部胃壁增厚,平扫时CT值约为35HU,增强后呈不均匀强化,动脉期、静脉期及平衡期CT值分别约为59HU、74HU及73HU;最厚处厚度约为1.7CM,胃腔狭窄,浆膜面模糊;胃小弯侧及肾水平以上腹主动脉旁可见多发增大淋巴结影,大者短径约为1.4CM;CTA重建示胃左动脉进入病灶,胃网膜左动脉及胃右动脉显示欠清。肝脏边缘光滑,各叶比例协调,肝左叶可见小圆形低密度影,密度均匀,增强后未见强化,直径约为0.4CM,边缘光滑,界限清晰。右肾上极可见小圆形低密度影,界清光滑。脾脏、胰腺、左肾形态及大小未见异常,其内未见异常密度影,增强后未见异常强化影。胆囊形态及大小未见异常,壁未见增厚,其内未见异常密度影及异常强化影。膀胱充盈良好,壁未见增厚,其内未见异常密度影,双侧输尿管未见扩张。盆腔内未见积液征象。</t>
+          <t>1.胃体部胃壁增厚，考虑为胃癌，侵及浆膜层，合并小弯侧及腹主动脉旁多发淋巴结转移，胃左动脉供血；2.肝左叶小囊肿；3.右肾上极小囊肿。胃体部胃壁增厚，平扫时CT值约为35HU，增强后呈不均匀强化，动脉期、静脉期及平衡期CT值分别约为59HU、74HU及73HU；最厚处厚度约为1.7CM，胃腔狭窄，浆膜面模糊；胃小弯侧及肾水平以上腹主动脉旁可见多发增大淋巴结影，大者短径约为1.4CM；CTA重建示胃左动脉进入病灶，胃网膜左动脉及胃右动脉显示欠清。肝脏边缘光滑，各叶比例协调，肝左叶可见小圆形低密度影，密度均匀，增强后未见强化，直径约为0.4CM，边缘光滑，界限清晰。右肾上极可见小圆形低密度影，界清光滑。脾脏、胰腺、左肾形态及大小未见异常，其内未见异常密度影，增强后未见异常强化影。胆囊形态及大小未见异常，壁未见增厚，其内未见异常密度影及异常强化影。膀胱充盈良好，壁未见增厚，其内未见异常密度影，双侧输尿管未见扩张。盆腔内未见积液征象。</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -417,7 +417,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>左肺门、左肺上叶团块影,大小约7.68CM×6.58CM,平扫CT值约37HU,增强扫描CT值约55、56、54HU,周围可见斑片状高密度影,边界欠清;左肺上叶支气管截断,左肺动脉受侵犯。右肺水平裂(42)、左肺下叶(21、33)粟粒灶。两肺纹理清晰。右肺门区未见异常。纵隔内未见异常增大的淋巴结。两胸腔未见积液征象。所示双侧肾上腺区团块影,脾脏内低密度影,肝脏内囊性低密度影。1.左肺门、左肺上叶占位,考虑中央型肺癌可能大,左肺动脉受侵,左肺上叶阻塞性炎症;2.双肺粟粒灶;请随诊;3.所示腹部病变,部分转移征象可能,请详查。</t>
+          <t>左肺门、左肺上叶团块影，大小约7.68CM×6.58CM，平扫CT值约37HU，增强扫描CT值约55、56、54HU，周围可见斑片状高密度影，边界欠清；左肺上叶支气管截断，左肺动脉受侵犯。右肺水平裂(42)、左肺下叶(21、33)粟粒灶。两肺纹理清晰。右肺门区未见异常。纵隔内未见异常增大的淋巴结。两胸腔未见积液征象。所示双侧肾上腺区团块影，脾脏内低密度影，肝脏内囊性低密度影。1.左肺门、左肺上叶占位，考虑中央型肺癌可能大，左肺动脉受侵，左肺上叶阻塞性炎症；2.双肺粟粒灶；请随诊；3.所示腹部病变，部分转移征象可能，请详查。</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -439,7 +439,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>与2012-06-28片对比:1.左肺下叶中心型肺癌,纵隔淋巴结转移,较前相仿;2.右肺门增大并右肺下叶内侧基底段磨玻璃密度影,考虑肿大淋巴结压迫支气管所致阻塞性肺炎;3.右侧胸膜局部肥厚;4.肝脏多发低密度影,腹膜后多发肿大淋巴结影,建议详查。左肺下叶可见不规则软组织密度影,最大横断面约为6.0CM×6.4CM,边界尚清晰,其内密度均匀,CT值26HU,下叶后基底段支气管闭塞,增强后明显强化,各期CT值依次为74HU、53HU、49HU。右肺下叶内基底段可见磨玻璃密度影,直径约1.9CM。纵隔内可见增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。右侧局部胸膜增厚。所示肝脏可见多发类圆形稍低密度影。胆囊内可见多发类圆形高密度影,胃壁增厚,腹膜后多发结节影。</t>
+          <t>与2012-06-28片对比：1.左肺下叶中心型肺癌，纵隔淋巴结转移，较前相仿；2.右肺门增大并右肺下叶内侧基底段磨玻璃密度影，考虑肿大淋巴结压迫支气管所致阻塞性肺炎；3.右侧胸膜局部肥厚；4.肝脏多发低密度影，腹膜后多发肿大淋巴结影，建议详查。左肺下叶可见不规则软组织密度影，最大横断面约为6.0CM×6.4CM，边界尚清晰，其内密度均匀，CT值26HU，下叶后基底段支气管闭塞，增强后明显强化，各期CT值依次为74HU、53HU、49HU。右肺下叶内基底段可见磨玻璃密度影，直径约1.9CM。纵隔内可见增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。右侧局部胸膜增厚。所示肝脏可见多发类圆形稍低密度影。胆囊内可见多发类圆形高密度影，胃壁增厚，腹膜后多发结节影。</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -461,7 +461,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>右肺上叶见团块状软组织密度灶,约为5.8CM×4.2CM,CT值约为35HU,周围见胸膜粘连、凹陷,邻近右肺上叶部分支气管受压、截断;增强扫描,动脉期其内见强化血管影,静脉期、延迟期密度较高约为64HU,强化不均匀。双肺内散在纤维索条影及小结节灶。双肺下叶近胸膜下分别见一病灶,呈磨玻璃密度,并可见实性结节,较大者直径约为1.5CM。双肺下叶见斑片状稍高密度影。右肺门区见多个肿大淋巴结影,最大者直径约为1.0CM,中度均匀强化。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。双侧胸膜略增厚。心脏大血管未见异常。所示甲状腺右叶见稍低密度灶。肝内见多发低密度灶,无强化。胸椎可见多发低密度影及片状高密度影。1.右肺上叶肺癌,伴右肺门、纵隔淋巴结转移;2.右肺下叶病灶,不除外原发性肺癌;3.支气管炎;双肺多发小结节及纤维索条影,请随诊;4.甲状腺右叶病变;肝内多发囊肿,肝内导管扩张,请结合临床;5.胸椎改变,请结合临床除外转移。</t>
+          <t>右肺上叶见团块状软组织密度灶，约为5.8CM×4.2CM，CT值约为35HU，周围见胸膜粘连、凹陷，邻近右肺上叶部分支气管受压、截断；增强扫描，动脉期其内见强化血管影，静脉期、延迟期密度较高约为64HU，强化不均匀。双肺内散在纤维索条影及小结节灶。双肺下叶近胸膜下分别见一病灶，呈磨玻璃密度，并可见实性结节，较大者直径约为1.5CM。双肺下叶见斑片状稍高密度影。右肺门区见多个肿大淋巴结影，最大者直径约为1.0CM，中度均匀强化。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。双侧胸膜略增厚。心脏大血管未见异常。所示甲状腺右叶见稍低密度灶。肝内见多发低密度灶，无强化。胸椎可见多发低密度影及片状高密度影。1.右肺上叶肺癌，伴右肺门、纵隔淋巴结转移；2.右肺下叶病灶，不除外原发性肺癌；3.支气管炎；双肺多发小结节及纤维索条影，请随诊；4.甲状腺右叶病变；肝内多发囊肿，肝内导管扩张，请结合临床；5.胸椎改变，请结合临床除外转移。</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -483,7 +483,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>左肺上叶舌段(36)可见结节影,大小约1.94CM×1.76CM,CT值约26HU,边缘可见毛刺邻近胸膜牵拉;左肺上叶(28)见小结节影,径约0.6CM。双肺散在少许斑片状稍高密度影,边界模糊不清。左肺下叶背段索条灶、粟粒灶,局部牵拉支气管扩张。双肺下叶多发索条灶;双肺上叶胸膜下多发透亮小泡影。纵隔内及左肺门见增大淋巴结,大者短径约1.4CM。两胸腔未见积液征象。双侧胸膜增厚。主动脉、冠脉壁见致密影。1.左肺上叶舌段周围型肺癌,纵隔与左肺门多发淋巴结转移,较前2016-09-25CT进展;2.左肺上叶小结节,较前新发;3.双肺多发节段性炎症,较前减轻;双肺下叶机化性病灶,较前相仿;4.双肺上叶小叶间隔旁气肿;5.双侧胸膜增厚。</t>
+          <t>左肺上叶舌段(36)可见结节影，大小约1.94CM×1.76CM，CT值约26HU，边缘可见毛刺邻近胸膜牵拉；左肺上叶(28)见小结节影，径约0.6CM。双肺散在少许斑片状稍高密度影，边界模糊不清。左肺下叶背段索条灶、粟粒灶，局部牵拉支气管扩张。双肺下叶多发索条灶；双肺上叶胸膜下多发透亮小泡影。纵隔内及左肺门见增大淋巴结，大者短径约1.4CM。两胸腔未见积液征象。双侧胸膜增厚。主动脉、冠脉壁见致密影。1.左肺上叶舌段周围型肺癌，纵隔与左肺门多发淋巴结转移，较前2016-09-25CT进展；2.左肺上叶小结节，较前新发；3.双肺多发节段性炎症，较前减轻；双肺下叶机化性病灶，较前相仿；4.双肺上叶小叶间隔旁气肿；5.双侧胸膜增厚。</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>胸廓前后径增宽。双肺支气管血管束增粗、模糊,部分肺野密度不均匀。右肺下叶可见不规则结节状稍高密度影,边缘稍毛糙,邻近支气管分支截断,径约为1.8CM,CT值约-6HU,增强三期分别为-32、61、5HU。双肺多发大小不一结节影,大者位于右肺上叶(18),径约为0.6CM,两肺门区未见异常。纵隔内见一略增大淋巴结影,直径1.3CM。两胸腔无积液征象。主动脉及冠状动脉走行区可见条形钙化影。所示部分胸椎见斑片状高密度影。右侧乳腺见点状钙化灶。1.右肺下叶结节灶,较2015.12.22CT相仿,考虑为周围型肺癌,请结合临床;2.双肺小结节,考虑为转移瘤,较前相仿;3.所示胸椎改变,请结合临床;4.支气管炎,肺气肿。</t>
+          <t>胸廓前后径增宽。双肺支气管血管束增粗、模糊，部分肺野密度不均匀。右肺下叶可见不规则结节状稍高密度影，边缘稍毛糙，邻近支气管分支截断，径约为1.8CM，CT值约-6HU，增强三期分别为-32、61、5HU。双肺多发大小不一结节影，大者位于右肺上叶(18)，径约为0.6CM，两肺门区未见异常。纵隔内见一略增大淋巴结影，直径1.3CM。两胸腔无积液征象。主动脉及冠状动脉走行区可见条形钙化影。所示部分胸椎见斑片状高密度影。右侧乳腺见点状钙化灶。1.右肺下叶结节灶，较2015.12.22CT相仿，考虑为周围型肺癌，请结合临床；2.双肺小结节，考虑为转移瘤，较前相仿；3.所示胸椎改变，请结合临床；4.支气管炎，肺气肿。</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>双肺多发小片状低密度影,右肺下叶见偏心性空洞影,界清,可见胸膜牵拉,与右肺下叶支气管内壁相连,空洞内壁光整,可见气液平面,病灶最大截面(24)径约9.32CM×3.88CM,内部密度不均,内见点状致密影,CT值约为4-41HU,增强扫描三期CT值分别为19-76、8-81、1-81HU,呈中度不均匀强化。后纵隔内见软组织肿块影,边界较清,局部压迫食管,最大截面(38)径约2.91CM×4.84CM,CT值约为42HU,增强三期分别为78、66、66HU。两肺门区未见异常。所示气管支气管影通畅。纵隔内见稍大淋巴结,短径约0.93CM。右胸腔少量积液。右侧胸膜局部粘连增厚。心脏不大,主动脉管壁见条形致密影。双侧腋窝多发小淋巴结。1、考虑右肺下叶周围型肺癌(厚壁空洞形成)伴纵隔淋巴结转移,右侧胸腔少量积液,伴胸膜增厚,请结合临床;2、轻度肺气肿。</t>
+          <t>双肺多发小片状低密度影，右肺下叶见偏心性空洞影，界清，可见胸膜牵拉，与右肺下叶支气管内壁相连，空洞内壁光整，可见气液平面，病灶最大截面(24)径约9.32CM×3.88CM，内部密度不均，内见点状致密影，CT值约为4-41HU，增强扫描三期CT值分别为19-76、8-81、1-81HU，呈中度不均匀强化。后纵隔内见软组织肿块影，边界较清，局部压迫食管，最大截面(38)径约2.91CM×4.84CM，CT值约为42HU，增强三期分别为78、66、66HU。两肺门区未见异常。所示气管支气管影通畅。纵隔内见稍大淋巴结，短径约0.93CM。右胸腔少量积液。右侧胸膜局部粘连增厚。心脏不大，主动脉管壁见条形致密影。双侧腋窝多发小淋巴结。1、考虑右肺下叶周围型肺癌(厚壁空洞形成)伴纵隔淋巴结转移，右侧胸腔少量积液，伴胸膜增厚，请结合临床；2、轻度肺气肿。</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -540,7 +540,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>与2015-01-15CT相比:1.右肺中央型肺癌,较前肿块明显减小,纵隔淋巴结转移,较前减小、减少;2.前片示右肺下叶背段结节,此次未见显示;3.慢性支气管炎、肺气肿改变;4.胆囊结石,副脾,均较前相仿,请结合腹部检查。双肺纹理增强、紊乱,局部支气管壁增厚,边缘模糊。双肺透过度增高,可见多发小圆形透亮影;右肺门略增大,可见少许软组织密度影包绕右肺门区支气管血管束,大小约2.2CM×2.1CM,平扫CT值约40HU,增强扫描呈轻中度强化,三期CT值分别约50HU、60HU、66HU;支气管管壁增厚,管腔略变窄。主动脉肺窗内见增大的淋巴结,边界模糊,短径约2.6CM,增强扫描呈环形强化。所示胆囊体积明显增大,其内可见结节状致密影,径约1.29CM。所示脾脏前端可见小圆形等密度影,增强扫描呈均匀强化。</t>
+          <t>与2015-01-15CT相比：1.右肺中央型肺癌，较前肿块明显减小，纵隔淋巴结转移，较前减小、减少；2.前片示右肺下叶背段结节，此次未见显示；3.慢性支气管炎、肺气肿改变；4.胆囊结石，副脾，均较前相仿，请结合腹部检查。双肺纹理增强、紊乱，局部支气管壁增厚，边缘模糊。双肺透过度增高，可见多发小圆形透亮影；右肺门略增大，可见少许软组织密度影包绕右肺门区支气管血管束，大小约2.2CM×2.1CM，平扫CT值约40HU，增强扫描呈轻中度强化，三期CT值分别约50HU、60HU、66HU；支气管管壁增厚，管腔略变窄。主动脉肺窗内见增大的淋巴结，边界模糊，短径约2.6CM，增强扫描呈环形强化。所示胆囊体积明显增大，其内可见结节状致密影，径约1.29CM。所示脾脏前端可见小圆形等密度影，增强扫描呈均匀强化。</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -562,7 +562,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.结合临床,右乳癌术后,纵隔、双肺门淋巴结较前(2016-07-13)片变化不著,左肺转移,较前好转;左肾上腺饱满,较前变化不著;骨转移,较前变化不著2.双肺炎症,基本变化不著3.心包少量积液,变化不著4.脂肪肝,肝囊肿;左肾囊肿右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见小淋巴结,大者直径约0.5CM。左肺野示数个结节灶,大者直径约0.5CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质密度减低,内可见囊性密度灶。左肾上腺饱满。胆、胰、脾及扫描野内右肾未见异常。左肾示直径约3.0CM的囊性密度灶。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示成骨性及混合性骨质破坏。</t>
+          <t>1.结合临床，右乳癌术后，纵隔、双肺门淋巴结较前(2016-07-13)片变化不著，左肺转移，较前好转；左肾上腺饱满，较前变化不著；骨转移，较前变化不著2.双肺炎症，基本变化不著3.心包少量积液，变化不著4.脂肪肝，肝囊肿；左肾囊肿右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见小淋巴结，大者直径约0.5CM。左肺野示数个结节灶，大者直径约0.5CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质密度减低，内可见囊性密度灶。左肾上腺饱满。胆、胰、脾及扫描野内右肾未见异常。左肾示直径约3.0CM的囊性密度灶。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示成骨性及混合性骨质破坏。</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -579,7 +579,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>右侧胸廓塌陷,右肺体积减小,纵隔右移,右肺下叶见团块状高密度影,形态不规则,边界不清楚,较大层面大小约9.15CM×6.12CM,CT值约21HU,右侧主支气管及各叶支气管受压变窄;右肺小叶间隔增厚,右侧胸膜弥漫性增厚,右侧胸腔可见包裹性积液;右侧腋窝、纵隔淋巴结增大,大者短径约1.53CM。左肺下叶外基底段(S23)可见粟粒影。心包增厚,见弧形液体密度影,右侧第2、4、6、7、8肋骨、胸3、12椎体骨质密度不均匀增高,形态不规整。右第1肋欠整,右侧乳腺内见一结节影,径约1.01CM,边界清晰,其内见点状钙化。1.右下肺中心型肺癌,右肺淋巴道转移,右侧胸膜转移,右侧胸腔包裹性积液;右侧腋窝及纵隔淋巴结转移;右侧多个肋骨、胸3、12椎体成骨性转移,较2014.03.25胸部CT,右肺病变有所进展;2.心包积液,较前新发;3.左肺下叶外基底段粟粒灶,右乳钙化结节;右侧第1肋骨欠规整,较前相仿。</t>
+          <t>右侧胸廓塌陷，右肺体积减小，纵隔右移，右肺下叶见团块状高密度影，形态不规则，边界不清楚，较大层面大小约9.15CM×6.12CM，CT值约21HU，右侧主支气管及各叶支气管受压变窄；右肺小叶间隔增厚，右侧胸膜弥漫性增厚，右侧胸腔可见包裹性积液；右侧腋窝、纵隔淋巴结增大，大者短径约1.53CM。左肺下叶外基底段(S23)可见粟粒影。心包增厚，见弧形液体密度影，右侧第2、4、6、7、8肋骨、胸3、12椎体骨质密度不均匀增高，形态不规整。右第1肋欠整，右侧乳腺内见一结节影，径约1.01CM，边界清晰，其内见点状钙化。1.右下肺中心型肺癌，右肺淋巴道转移，右侧胸膜转移，右侧胸腔包裹性积液；右侧腋窝及纵隔淋巴结转移；右侧多个肋骨、胸3、12椎体成骨性转移，较2014.03.25胸部CT，右肺病变有所进展；2.心包积液，较前新发；3.左肺下叶外基底段粟粒灶，右乳钙化结节；右侧第1肋骨欠规整，较前相仿。</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -601,7 +601,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>右肺中叶、下叶及左肺下叶见多发小结节影,大者径约0.45CM。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。所示左乳内见团块影,大小约为1.57CM×1.41CM,CT值约52HU,边缘不光整,见毛刺。右乳见多发团块,大者1.41CM×1.73CM;较小者大小约为0.83CM×0.93CM,其内见点状钙化灶。右侧腋窝见一直径约1.08CM类圆形淋巴结。1.双肺多发结节,考虑转移可能性大,建议对比原片;2.双乳占位,考虑双乳癌,右侧腋窝淋巴结增大,请结合临床。</t>
+          <t>右肺中叶、下叶及左肺下叶见多发小结节影，大者径约0.45CM。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。所示左乳内见团块影，大小约为1.57CM×1.41CM，CT值约52HU，边缘不光整，见毛刺。右乳见多发团块，大者1.41CM×1.73CM；较小者大小约为0.83CM×0.93CM，其内见点状钙化灶。右侧腋窝见一直径约1.08CM类圆形淋巴结。1.双肺多发结节，考虑转移可能性大，建议对比原片；2.双乳占位，考虑双乳癌，右侧腋窝淋巴结增大，请结合临床。</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -623,7 +623,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>右肺上叶周围型肺癌,双肺多发转移瘤,纵隔淋巴结转移,双侧胸腔积液、心包积液,胸椎骨质破坏,较前(2015.7.15)进展。右肺上叶纵隔旁见椭圆形肿块影,大小约5.1CM×2.7CM,CT值19HU;两肺多发大小不等的结节影,大者直径约2.8CM。右肺上叶后段支气管截断。两肺门影增大。纵隔内多发增大的淋巴结,大者短径约2.0CM,其内见钙化灶。两胸腔见积液征象,右侧为著。冠脉钙化。心包积液。上胸椎骨质破坏,周围见软组织肿块影。</t>
+          <t>右肺上叶周围型肺癌，双肺多发转移瘤，纵隔淋巴结转移，双侧胸腔积液、心包积液，胸椎骨质破坏，较前(2015.7.15)进展。右肺上叶纵隔旁见椭圆形肿块影，大小约5.1CM×2.7CM，CT值19HU；两肺多发大小不等的结节影，大者直径约2.8CM。右肺上叶后段支气管截断。两肺门影增大。纵隔内多发增大的淋巴结，大者短径约2.0CM，其内见钙化灶。两胸腔见积液征象，右侧为著。冠脉钙化。心包积液。上胸椎骨质破坏，周围见软组织肿块影。</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.右肺下叶结节,考虑周围型肺癌,并纵隔及右肺门淋巴结转移,右肺门区及右肺中叶阻塞性肺炎,右肺上叶前段淋巴道转移可能;2.左肺下叶外底段小结节灶,随诊;3.所示脾门软组织影,请结合腹部检查;4.左侧第3侧肋欠规整。右肺下叶外底段可见结节影,径约2.3CM,边缘可见毛刺及胸膜牵拉征,平扫CT值约为28HU,增强扫描三期CT值分别为75HU、58HU、60HU。右肺门可见斑片状高密度影,增强扫描可见明显强化,右肺门支气管管壁增厚,管腔狭窄,右肺中叶部分不张实变。右肺上叶前段可见斑片状稍高密度影,其内可见支气管管壁增厚。左肺下叶外底段可见结节影。双肺纹理增多。纵隔、右肺门可见多发增大的淋巴结,大者径约1.3CM。所示脾门区软组织影。左侧第3侧肋欠规整。</t>
+          <t>1.右肺下叶结节，考虑周围型肺癌，并纵隔及右肺门淋巴结转移，右肺门区及右肺中叶阻塞性肺炎，右肺上叶前段淋巴道转移可能；2.左肺下叶外底段小结节灶，随诊；3.所示脾门软组织影，请结合腹部检查；4.左侧第3侧肋欠规整。右肺下叶外底段可见结节影，径约2.3CM，边缘可见毛刺及胸膜牵拉征，平扫CT值约为28HU，增强扫描三期CT值分别为75HU、58HU、60HU。右肺门可见斑片状高密度影，增强扫描可见明显强化，右肺门支气管管壁增厚，管腔狭窄，右肺中叶部分不张实变。右肺上叶前段可见斑片状稍高密度影，其内可见支气管管壁增厚。左肺下叶外底段可见结节影。双肺纹理增多。纵隔、右肺门可见多发增大的淋巴结，大者径约1.3CM。所示脾门区软组织影。左侧第3侧肋欠规整。</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -667,7 +667,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>前中纵隔内可见弥漫性软组织密度影,密度不均匀,边界不清,增强扫描呈明显不均匀性强化,平扫及三期CT值为28、80、92、102HU,隐约可见结节融合改变。右肺上叶胸膜下、右肺中叶见结节影,径约0.4CM。右肺中叶及左肺下叶见索条影。两胸腔可见较多积液征象,肝实质内可见多发类圆形低密度影。双肺内可见多发索条影。1、前中纵隔占位性病变,双侧胸腔积液,考虑恶性肿瘤(侵袭性胸腺瘤可能性大,不除外生殖细胞肿瘤),请结合实验室检查;2、右肺上叶、中叶结节,双肺多发索条灶,请随诊;3.肝内多发低密度影,不除外转移瘤。</t>
+          <t>前中纵隔内可见弥漫性软组织密度影，密度不均匀，边界不清，增强扫描呈明显不均匀性强化，平扫及三期CT值为28、80、92、102HU，隐约可见结节融合改变。右肺上叶胸膜下、右肺中叶见结节影，径约0.4CM。右肺中叶及左肺下叶见索条影。两胸腔可见较多积液征象，肝实质内可见多发类圆形低密度影。双肺内可见多发索条影。1、前中纵隔占位性病变，双侧胸腔积液，考虑恶性肿瘤(侵袭性胸腺瘤可能性大，不除外生殖细胞肿瘤)，请结合实验室检查；2、右肺上叶、中叶结节，双肺多发索条灶，请随诊；3.肝内多发低密度影，不除外转移瘤。</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>右肺中叶见团块影,边界不清,径约2.5CM×3.4CM,CT值约39HU,增强三期分别为54、58、67HU。右肺尖(55)、右肺上叶(39)、下叶后基底段(36)、下叶基底段(28)小结节影,径约0.3CM。右肺下叶背段(39)淡片影,径约1.0CM。两肺门区未见异常。右肺下叶支气管轻度扩张,管壁稍增厚,多发小叶间隔增粗。纵隔内多发肿大淋巴结,短径约2.5CM,密度较均匀,CT值37HU。两胸腔无积液征象。主动脉壁及冠脉壁见弧形高密度影。全心大,心包稍增厚。左侧锁骨上窝见一淋巴结影,约为2.3CM×2.1CM,CT值32HU。胸11椎体右侧见结节状稍高密度影,直径0.9CM。腰1椎体见片状不规则高密度影。1.右肺中叶周围型肺癌,纵隔多发淋巴结转移;较2016.4.21相仿;2.右肺下叶背段结节,较前密度变淡;3.双肺小结节,较前相仿;4.右肺下叶支气管轻度扩张,小叶间隔增粗;5.全心增大,心包少量积液;6.右侧锁骨上淋巴结增大,胸11椎体右侧高密度影,转移可能,建议详查;腰1骨质增生;请随诊。</t>
+          <t>右肺中叶见团块影，边界不清，径约2.5CM×3.4CM，CT值约39HU，增强三期分别为54、58、67HU。右肺尖(55)、右肺上叶(39)、下叶后基底段(36)、下叶基底段(28)小结节影，径约0.3CM。右肺下叶背段(39)淡片影，径约1.0CM。两肺门区未见异常。右肺下叶支气管轻度扩张，管壁稍增厚，多发小叶间隔增粗。纵隔内多发肿大淋巴结，短径约2.5CM，密度较均匀，CT值37HU。两胸腔无积液征象。主动脉壁及冠脉壁见弧形高密度影。全心大，心包稍增厚。左侧锁骨上窝见一淋巴结影，约为2.3CM×2.1CM，CT值32HU。胸11椎体右侧见结节状稍高密度影，直径0.9CM。腰1椎体见片状不规则高密度影。1.右肺中叶周围型肺癌，纵隔多发淋巴结转移；较2016.4.21相仿；2.右肺下叶背段结节，较前密度变淡；3.双肺小结节，较前相仿；4.右肺下叶支气管轻度扩张，小叶间隔增粗；5.全心增大，心包少量积液；6.右侧锁骨上淋巴结增大，胸11椎体右侧高密度影，转移可能，建议详查；腰1骨质增生；请随诊。</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -706,7 +706,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1.结合临床,右乳癌术后,纵隔、双肺门淋巴结较前(2016-10-14)片变化不著,左肺转移,显示不清;左肾上腺饱满,较前变化不著;骨转移,较前变化不著2.双肺炎症,基本变化不著3.心包少量积液,变化不著4.脂肪肝,肝囊肿;左肾囊肿右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见小淋巴结,大者直径约0.5CM。左肺野示数个结节灶,大者直径约0.5CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质密度减低,内可见囊性密度灶。左肾上腺饱满。胆、胰、脾及扫描野内右肾未见异常。左肾示直径约3.0CM的囊性密度灶。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示成骨性及混合性骨质破坏。</t>
+          <t>1.结合临床，右乳癌术后，纵隔、双肺门淋巴结较前(2016-10-14)片变化不著，左肺转移，显示不清；左肾上腺饱满，较前变化不著；骨转移，较前变化不著2.双肺炎症，基本变化不著3.心包少量积液，变化不著4.脂肪肝，肝囊肿；左肾囊肿右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见小淋巴结，大者直径约0.5CM。左肺野示数个结节灶，大者直径约0.5CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质密度减低，内可见囊性密度灶。左肾上腺饱满。胆、胰、脾及扫描野内右肾未见异常。左肾示直径约3.0CM的囊性密度灶。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示成骨性及混合性骨质破坏。</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -723,7 +723,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>右肺上叶周围型肺癌,双肺多发转移瘤,纵隔淋巴结转移。右肺上叶纵隔旁可见椭圆形肿块影,大小约5.0CM×1.5CM,CT值42HU;两肺多发大小不等的结节影,大者直径约2.2CM。两肺支气管血管束略增粗。两肺门区未见异常。所示气管支气管影正常。纵隔内多发增大的淋巴结,大者直径约2.2CM,其内可见钙化灶。两胸腔无积液征象。冠脉钙化。</t>
+          <t>右肺上叶周围型肺癌，双肺多发转移瘤，纵隔淋巴结转移。右肺上叶纵隔旁可见椭圆形肿块影，大小约5.0CM×1.5CM，CT值42HU；两肺多发大小不等的结节影，大者直径约2.2CM。两肺支气管血管束略增粗。两肺门区未见异常。所示气管支气管影正常。纵隔内多发增大的淋巴结，大者直径约2.2CM，其内可见钙化灶。两胸腔无积液征象。冠脉钙化。</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -745,7 +745,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1、右肺上叶尖段恶性肿瘤,伴纵隔淋巴结多发转移,较2012-05-17CT明显增大;2、支气管炎征象;右肺中叶钙化灶;3、主动脉及冠状动脉硬化;4、轻度食管裂孔疝;左下小膈疝不除外,较前相仿,请结合临床;5、双侧胸膜肥厚。所示支气管血管束增强、紊乱,右肺上叶尖段可见团块影,其内密度稍欠均匀,周边见分叶征及短小毛刺,较大层面大小约4.73CM×5.58CM,CT值约35-45HU;余右肺中叶可见结节状钙化灶;纵隔可见增大的淋巴结影,大者短径约1.87CM;双侧胸膜肥厚。主动脉、冠状动脉走行区可见条片状致密影。主动脉弓管壁不规整、凸凹不平。左下肺见一与膈肌相连脂肪密度影,长径约3.32CM。贲门位于膈上。</t>
+          <t>1、右肺上叶尖段恶性肿瘤，伴纵隔淋巴结多发转移，较2012-05-17CT明显增大；2、支气管炎征象；右肺中叶钙化灶；3、主动脉及冠状动脉硬化；4、轻度食管裂孔疝；左下小膈疝不除外，较前相仿，请结合临床；5、双侧胸膜肥厚。所示支气管血管束增强、紊乱，右肺上叶尖段可见团块影，其内密度稍欠均匀，周边见分叶征及短小毛刺，较大层面大小约4.73CM×5.58CM，CT值约35-45HU；余右肺中叶可见结节状钙化灶；纵隔可见增大的淋巴结影，大者短径约1.87CM；双侧胸膜肥厚。主动脉、冠状动脉走行区可见条片状致密影。主动脉弓管壁不规整、凸凹不平。左下肺见一与膈肌相连脂肪密度影，长径约3.32CM。贲门位于膈上。</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -767,7 +767,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1.左肺上叶肺癌,左肺门、纵隔淋巴结多发转移,较2012-11-27CT未见显著变化;2.右肺上叶小结节,相仿;3.双肺纵隔旁放射性肺炎,相仿;4.双侧胸膜略厚,心包增厚。左肺上叶近纵隔旁见团片状软组织影,最大截面大小约为6.96CM×2.39CM,CT值约36HU;右肺上叶后段可见一结节,径约0.45CM;左肺下叶背段见片状高密度影,内见支气管充气征。双肺纵隔旁可见多发条片状高密度影。腔静脉间隙、主动脉弓旁、气管隆突上纵隔及左肺门多发结节状软组织影,密度欠均匀,见小斑片状高密度影,部分融合。双侧胸膜略增厚。心影不大,大血管壁可见钙化影,心包增厚。</t>
+          <t>1.左肺上叶肺癌，左肺门、纵隔淋巴结多发转移，较2012-11-27CT未见显著变化；2.右肺上叶小结节，相仿；3.双肺纵隔旁放射性肺炎，相仿；4.双侧胸膜略厚，心包增厚。左肺上叶近纵隔旁见团片状软组织影，最大截面大小约为6.96CM×2.39CM，CT值约36HU；右肺上叶后段可见一结节，径约0.45CM；左肺下叶背段见片状高密度影，内见支气管充气征。双肺纵隔旁可见多发条片状高密度影。腔静脉间隙、主动脉弓旁、气管隆突上纵隔及左肺门多发结节状软组织影，密度欠均匀，见小斑片状高密度影，部分融合。双侧胸膜略增厚。心影不大，大血管壁可见钙化影，心包增厚。</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1.右肺下叶结节,与2016-1-28片比略大,考虑肺癌可能;2.左颈部、左侧锁骨上下区、纵隔、左侧腋窝多发肿大淋巴结,较前左腋窝淋巴结增多,首先考虑转移瘤,请随诊。两肺支气管血管束清晰。右肺下叶内基底段见不规则分叶状结节影,最大层面约2.83CM×1.47CM,CT值约25HU,边界清晰,未见明确毛刺及胸膜凹陷,增强扫描结节明显强化,三期CT值分别为58、60、85HU。两肺门区未见异常。左颈部、左侧锁骨上下区、纵隔、左侧腋窝见多发肿大淋巴结,最大位于隆突下,直径约3.26CM×4.77CM,增强扫描呈多发环形强化。两胸腔无积液征象。</t>
+          <t>1.右肺下叶结节，与2016-1-28片比略大，考虑肺癌可能；2.左颈部、左侧锁骨上下区、纵隔、左侧腋窝多发肿大淋巴结，较前左腋窝淋巴结增多，首先考虑转移瘤，请随诊。两肺支气管血管束清晰。右肺下叶内基底段见不规则分叶状结节影，最大层面约2.83CM×1.47CM，CT值约25HU，边界清晰，未见明确毛刺及胸膜凹陷，增强扫描结节明显强化，三期CT值分别为58、60、85HU。两肺门区未见异常。左颈部、左侧锁骨上下区、纵隔、左侧腋窝见多发肿大淋巴结，最大位于隆突下，直径约3.26CM×4.77CM，增强扫描呈多发环形强化。两胸腔无积液征象。</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -807,7 +807,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>左肺上叶中央型肺癌,阻塞左上肺动脉,纵隔及左肺门淋巴结转移。左上肺门处可见肿块影,分叶状,大小为5.4CM×5.3CM,形状不规则,边缘清,与肺动脉分界不清,CT值为42HU,增强扫描三期CT值分别为49、47、54HU,均匀轻度强化,包绕左肺动脉,左肺上动脉未见显示,纵隔及左肺门可见多发肿大淋巴结,大者短径为2.0CM。左侧胸膜牵拉凹陷。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。</t>
+          <t>左肺上叶中央型肺癌，阻塞左上肺动脉，纵隔及左肺门淋巴结转移。左上肺门处可见肿块影，分叶状，大小为5.4CM×5.3CM，形状不规则，边缘清，与肺动脉分界不清，CT值为42HU，增强扫描三期CT值分别为49、47、54HU，均匀轻度强化，包绕左肺动脉，左肺上动脉未见显示，纵隔及左肺门可见多发肿大淋巴结，大者短径为2.0CM。左侧胸膜牵拉凹陷。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -829,7 +829,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>左肺下叶背段可见肿块影,边界模糊,径约9.31CM×6.47CM,平扫CT值约19-37HU,增强实性部分轻度强化,囊性低密度部分不强化,CT值约为14-54HU,22-66HU,16-44HU;左肺下叶部分支气管截断,左侧肺门可见增大淋巴结,左下肺动脉受侵,侵及胸膜;双肺下叶胸膜下多发类圆形小结节影,大者径约1.37CM×1.59CM;双肺小叶间隔增厚,近胸膜处多发囊状无肺纹理透亮区,纵膈内可见增大淋巴结,大者径约1.62CM×1.08CM。心脏大血管未见异常。与2013-10-12前片对比:1.左肺下叶中央型肺癌,左下肺动静脉受侵可能,纵隔及左肺门淋巴结转移,较前略大;2.双肺下叶多发类圆形小结节,考虑转移瘤,较前相仿;3.双肺弥漫性间质纤维化。</t>
+          <t>左肺下叶背段可见肿块影，边界模糊，径约9.31CM×6.47CM，平扫CT值约19-37HU，增强实性部分轻度强化，囊性低密度部分不强化，CT值约为14-54HU，22-66HU，16-44HU；左肺下叶部分支气管截断，左侧肺门可见增大淋巴结，左下肺动脉受侵，侵及胸膜；双肺下叶胸膜下多发类圆形小结节影，大者径约1.37CM×1.59CM；双肺小叶间隔增厚，近胸膜处多发囊状无肺纹理透亮区，纵膈内可见增大淋巴结，大者径约1.62CM×1.08CM。心脏大血管未见异常。与2013-10-12前片对比：1.左肺下叶中央型肺癌，左下肺动静脉受侵可能，纵隔及左肺门淋巴结转移，较前略大；2.双肺下叶多发类圆形小结节，考虑转移瘤，较前相仿；3.双肺弥漫性间质纤维化。</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -851,7 +851,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1.右下中心型肺癌,右肺多发转移瘤,侵及右侧胸膜,右侧多个肋骨成骨性转移,较2013.06.07CT片未见明显变化;2.右乳钙化结节,较前相仿;3.腹部病变,请结合腹部检查。4.左下肺胸膜下粟粒灶。5.右侧腋窝增大淋巴结。6.一上位胸椎致密影,请详查。双侧胸廓不对称,右侧胸廓塌陷,右肺体积减小,右肺下叶见团块状高密度影,形态不规则,边界不清楚,大小约3.97CM×4.64CM,CT值约29HU,右侧主支气管及下叶支气管受压变窄;右肺野及右胸膜可见高密度结节影,大小不一;右侧胸腔及右侧叶间裂见高密度影,部分包裹,右侧胸腔可见弧形液性密度影,右侧胸膜不均匀增厚。纵隔淋巴结增大,径长者约为1.28CM。心影大小正常范围。右侧第2、4、7、8肋骨骨质密度不均匀增高,形态不规整,其内可见骨质破坏。右侧乳腺内见一结节影,径约0.9CM,边界清晰,其内见点状钙化。</t>
+          <t>1.右下中心型肺癌，右肺多发转移瘤，侵及右侧胸膜，右侧多个肋骨成骨性转移，较2013.06.07CT片未见明显变化；2.右乳钙化结节，较前相仿；3.腹部病变，请结合腹部检查。4.左下肺胸膜下粟粒灶。5.右侧腋窝增大淋巴结。6.一上位胸椎致密影，请详查。双侧胸廓不对称，右侧胸廓塌陷，右肺体积减小，右肺下叶见团块状高密度影，形态不规则，边界不清楚，大小约3.97CM×4.64CM，CT值约29HU，右侧主支气管及下叶支气管受压变窄；右肺野及右胸膜可见高密度结节影，大小不一；右侧胸腔及右侧叶间裂见高密度影，部分包裹，右侧胸腔可见弧形液性密度影，右侧胸膜不均匀增厚。纵隔淋巴结增大，径长者约为1.28CM。心影大小正常范围。右侧第2、4、7、8肋骨骨质密度不均匀增高，形态不规整，其内可见骨质破坏。右侧乳腺内见一结节影，径约0.9CM，边界清晰，其内见点状钙化。</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -864,7 +864,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>右肺下叶周围型肺癌,右肺多发转移瘤,纵隔多发淋巴结转移,右侧胸膜转移及右侧胸腔积液征象,对比2016.01.20CT相仿,请结合临床。右肺下叶见团块影,长径约为3.47CM,CT值约为36HU,增强后CT值约为67HU、60HU及61HU;右肺另见多发大小不等界清结节影。左肺小结节(30),纵隔内见数个增大的淋巴结,大者短径约为1.9CM。心脏大血管形态自然。右侧胸腔内见弧形积液征象,增强后右胸膜见多个结节状强化。</t>
+          <t>右肺下叶周围型肺癌，右肺多发转移瘤，纵隔多发淋巴结转移，右侧胸膜转移及右侧胸腔积液征象，对比2016.01.20CT相仿，请结合临床。右肺下叶见团块影，长径约为3.47CM，CT值约为36HU，增强后CT值约为67HU、60HU及61HU；右肺另见多发大小不等界清结节影。左肺小结节(30)，纵隔内见数个增大的淋巴结，大者短径约为1.9CM。心脏大血管形态自然。右侧胸腔内见弧形积液征象，增强后右胸膜见多个结节状强化。</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -886,7 +886,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1.右乳癌术后改变;右侧胸膜多发结节灶,考虑为胸膜转移,较前(2015-02-25)结节示减少;多发骨质破坏,考虑为骨转移,变化不著;左锁骨上淋巴结肿大,较前缩小2.右肺中叶结节灶,建议观察3.轻度脂肪肝右乳术后缺如,术区未见异常密度灶。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门及纵隔未见肿大淋巴结。左侧内乳区见小淋巴结,短径不足0.5CM。右侧胸膜(包括叶间胸膜、膈胸膜)示多发类结节灶,大者直径约0.5CM,边界较清。右肺中叶见一结节灶(图4-27),直径约0.4CM,密度较低。余双肺野清晰,气管及各级支气管通畅,未见异常密度灶。双肺门及纵隔未见肿大淋巴结。双侧胸腔未见积液征象。扫描野内肝实质密度轻度减低。胸骨、T3、T7、T8、T12椎体呈不规则骨质改变。鼻咽、口咽、喉及下咽未见异常。左侧锁骨上区示多个淋巴结,大者短径约1.0CM。余双侧颈动脉鞘区见短径不足0.5CM小淋巴结。</t>
+          <t>1.右乳癌术后改变；右侧胸膜多发结节灶，考虑为胸膜转移，较前(2015-02-25)结节示减少；多发骨质破坏，考虑为骨转移，变化不著；左锁骨上淋巴结肿大，较前缩小2.右肺中叶结节灶，建议观察3.轻度脂肪肝右乳术后缺如，术区未见异常密度灶。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门及纵隔未见肿大淋巴结。左侧内乳区见小淋巴结，短径不足0.5CM。右侧胸膜(包括叶间胸膜、膈胸膜)示多发类结节灶，大者直径约0.5CM，边界较清。右肺中叶见一结节灶(图4-27)，直径约0.4CM，密度较低。余双肺野清晰，气管及各级支气管通畅，未见异常密度灶。双肺门及纵隔未见肿大淋巴结。双侧胸腔未见积液征象。扫描野内肝实质密度轻度减低。胸骨、T3、T7、T8、T12椎体呈不规则骨质改变。鼻咽、口咽、喉及下咽未见异常。左侧锁骨上区示多个淋巴结，大者短径约1.0CM。余双侧颈动脉鞘区见短径不足0.5CM小淋巴结。</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1.右肺下叶中央型肺癌可能性大;2.双肺小结节,不除外转移,随诊;3.纵隔小淋巴结,左肺上叶条索灶。右肺下叶(HR88)见肿块影,界清,大小3.8CM×3.9CM,可见浅分叶及短毛刺,平扫CT值53HU,增强三期:62HU、65HU、72HU。右肺上叶(HR84)、中叶(88、90)、左肺上叶舌段(102)见结节影,径约0.8CM。左肺上叶见条索影。两肺纹理清晰。两肺门区未见异常。所示气管支气管影通畅。纵隔内见多发小淋巴结,短径1.1CM。两胸腔未见积液征象。心脏大血管未见异常。</t>
+          <t>1.右肺下叶中央型肺癌可能性大；2.双肺小结节，不除外转移，随诊；3.纵隔小淋巴结，左肺上叶条索灶。右肺下叶(HR88)见肿块影，界清，大小3.8CM×3.9CM，可见浅分叶及短毛刺，平扫CT值53HU，增强三期：62HU、65HU、72HU。右肺上叶(HR84)、中叶(88、90)、左肺上叶舌段(102)见结节影，径约0.8CM。左肺上叶见条索影。两肺纹理清晰。两肺门区未见异常。所示气管支气管影通畅。纵隔内见多发小淋巴结，短径1.1CM。两胸腔未见积液征象。心脏大血管未见异常。</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -925,7 +925,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>双肺纹理增强、紊乱,局部支气管壁增厚,边缘模糊。双肺透过度增高,可见多发小圆形透亮影;右肺门可见团块状高密度影,大小约为4.49CM×3.09CM,平扫CT值约为37HU,增强扫描三期CT值约为64HU、66HU、61HU,周围可见淡片状稍高密度影,边缘模糊;右主支气管明显受压,管腔变窄;右肺下叶背段(39)可见结节状稍高密度影,其内可见血管进入;纵隔内可见多发淋巴结影,较大者位于气管前方,径约2.03CM,增强扫描呈均匀强化。所示胆囊体积明显增大,其内可见结节状致密影,径约1.29CM。所示脾脏前端可见小圆形等密度影,增强扫描呈均匀强化。1.右肺中央型肺癌,周围轻度癌性浸润;纵隔多发淋巴结转移;2.右肺下叶背段结节;3.双肺慢性支气管炎、肺气肿改变;4.胆囊结石;脾脏前端等密度影,首先考虑副脾可能,请结合腹部检查。</t>
+          <t>双肺纹理增强、紊乱，局部支气管壁增厚，边缘模糊。双肺透过度增高，可见多发小圆形透亮影；右肺门可见团块状高密度影，大小约为4.49CM×3.09CM，平扫CT值约为37HU，增强扫描三期CT值约为64HU、66HU、61HU，周围可见淡片状稍高密度影，边缘模糊；右主支气管明显受压，管腔变窄；右肺下叶背段(39)可见结节状稍高密度影，其内可见血管进入；纵隔内可见多发淋巴结影，较大者位于气管前方，径约2.03CM，增强扫描呈均匀强化。所示胆囊体积明显增大，其内可见结节状致密影，径约1.29CM。所示脾脏前端可见小圆形等密度影，增强扫描呈均匀强化。1.右肺中央型肺癌，周围轻度癌性浸润；纵隔多发淋巴结转移；2.右肺下叶背段结节；3.双肺慢性支气管炎、肺气肿改变；4.胆囊结石；脾脏前端等密度影，首先考虑副脾可能，请结合腹部检查。</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -947,7 +947,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见小淋巴结,大者直径约0.5CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质密度减低,内可见囊性密度灶。左肾上腺饱满。胆、胰、脾及扫描野内右肾未见异常。左肾示直径约3.0CM的囊性密度灶。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示成骨性及混合性骨质破坏。1.结合临床,右乳癌术后,纵隔、双肺门淋巴结较前(2017-1-09)片变化不著,左肺转移,显示不清;左肾上腺饱满,较前变化不著;骨转移,较前变化不著2.双肺炎症,基本变化不著3.心包少量积液,变化不著4.脂肪肝,肝囊肿;左肾囊肿</t>
+          <t>右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见小淋巴结，大者直径约0.5CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质密度减低，内可见囊性密度灶。左肾上腺饱满。胆、胰、脾及扫描野内右肾未见异常。左肾示直径约3.0CM的囊性密度灶。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示成骨性及混合性骨质破坏。1.结合临床，右乳癌术后，纵隔、双肺门淋巴结较前(2017-1-09)片变化不著，左肺转移，显示不清；左肾上腺饱满，较前变化不著；骨转移，较前变化不著2.双肺炎症，基本变化不著3.心包少量积液，变化不著4.脂肪肝，肝囊肿；左肾囊肿</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1.右肺下叶肺癌,并双肺、右胸膜多发转移,与2015-08-13CT片对比,肿块略减小,双肺多发转移较前减少、减小;右侧胸腔积液,心包积液,较前相仿;2.甲状腺饱满。右肺下叶可见不规则稍低密度影,与右肺门分界不清,边缘毛糙,CT值约为37HU,其内密度不均,大小约为2.04CM×1.62CM,邻近肺组织可见模糊影,右肺下叶内基底段支气管截断,右肺胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影,边缘毛糙,大者径约为0.6CM;纵隔内未见增大淋巴结影。右侧胸腔、心包内见少许液性密度影。甲状腺明显肿大。</t>
+          <t>1.右肺下叶肺癌，并双肺、右胸膜多发转移，与2015-08-13CT片对比，肿块略减小，双肺多发转移较前减少、减小；右侧胸腔积液，心包积液，较前相仿；2.甲状腺饱满。右肺下叶可见不规则稍低密度影，与右肺门分界不清，边缘毛糙，CT值约为37HU，其内密度不均，大小约为2.04CM×1.62CM，邻近肺组织可见模糊影，右肺下叶内基底段支气管截断，右肺胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影，边缘毛糙，大者径约为0.6CM；纵隔内未见增大淋巴结影。右侧胸腔、心包内见少许液性密度影。甲状腺明显肿大。</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -986,7 +986,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>左肺上叶前段可见磨玻璃密度影,最大截面大小约1.13CM×1.0CM。右肺见粟粒影及结节影。右肺可见索条影。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心影增大,大血管壁可见钙化影。所示左侧乳腺可见团块影,最大截面大小约9.3CM×6.12CM,其内密度欠均,邻近左乳皮肤增厚。双侧腋窝淋巴结增大,以左侧为著,较大者径约2.06CM。对比2013-11-21CT:1.左乳腺癌;双侧腋窝淋巴结转移,较前病变范围增大;2.左肺上叶磨玻璃密度影,较前相仿;3.右肺粟粒灶、结节影,较前相仿;请结合临床随诊。</t>
+          <t>左肺上叶前段可见磨玻璃密度影，最大截面大小约1.13CM×1.0CM。右肺见粟粒影及结节影。右肺可见索条影。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心影增大，大血管壁可见钙化影。所示左侧乳腺可见团块影，最大截面大小约9.3CM×6.12CM，其内密度欠均，邻近左乳皮肤增厚。双侧腋窝淋巴结增大，以左侧为著，较大者径约2.06CM。对比2013-11-21CT：1.左乳腺癌；双侧腋窝淋巴结转移，较前病变范围增大；2.左肺上叶磨玻璃密度影，较前相仿；3.右肺粟粒灶、结节影，较前相仿；请结合临床随诊。</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1004,7 +1004,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>左肺上叶舌段及下叶基底段可见不规则团块影,大者约1.73CM×2.53CM,CT值约35HU,周围可见血管集束征及毛刺征。双肺可见多发结节影,大者径约0.63CM。两肺支气管血管束清晰。两肺门稍饱满。所示气管支气管影通畅。两胸腔未见积液征象。冠脉可见致密影。1.左肺不规则团块影,考虑周围型肺癌;2.双肺多发结节影,转移不除外,请结合临床。</t>
+          <t>左肺上叶舌段及下叶基底段可见不规则团块影，大者约1.73CM×2.53CM，CT值约35HU，周围可见血管集束征及毛刺征。双肺可见多发结节影，大者径约0.63CM。两肺支气管血管束清晰。两肺门稍饱满。所示气管支气管影通畅。两胸腔未见积液征象。冠脉可见致密影。1.左肺不规则团块影，考虑周围型肺癌；2.双肺多发结节影，转移不除外，请结合临床。</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1026,7 +1026,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>双肺纹理清晰。右肺中叶可见团块影,边界较清晰,大小约为3.77CM×3.93CM,平扫CT值为27HU、增强扫描三期CT值为64HU、75HU、76HU,双肺可见多发结节影,较大者径约0.48CM;所示气管支气管影正常。右肺门增大,该处可见多个小淋巴结,纵隔内见增大淋巴结影,径约1.03CM。两胸腔无积液征象。心脏大血管未见异常。甲状腺形态正常,颈部各血管走行正常,颈部间隙未见肿大淋巴结,颈部各肌肉软组织未见异常。1.右肺中叶周围型肺癌,与2012-10-23CT片相比略缩小;2.双肺多发转移瘤,较前未见明显变化;3.右侧肺门增大,纵隔淋巴结增大,与原片相比未见明显进展。4.前上纵隔囊性灶,囊肿可能。</t>
+          <t>双肺纹理清晰。右肺中叶可见团块影，边界较清晰，大小约为3.77CM×3.93CM，平扫CT值为27HU、增强扫描三期CT值为64HU、75HU、76HU，双肺可见多发结节影，较大者径约0.48CM；所示气管支气管影正常。右肺门增大，该处可见多个小淋巴结，纵隔内见增大淋巴结影，径约1.03CM。两胸腔无积液征象。心脏大血管未见异常。甲状腺形态正常，颈部各血管走行正常，颈部间隙未见肿大淋巴结，颈部各肌肉软组织未见异常。1.右肺中叶周围型肺癌，与2012-10-23CT片相比略缩小；2.双肺多发转移瘤，较前未见明显变化；3.右侧肺门增大，纵隔淋巴结增大，与原片相比未见明显进展。4.前上纵隔囊性灶，囊肿可能。</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1.左肺中心型肺癌;左胸膜及胸膜下肺内多发结节转移;纵膈及左腋窝肿大淋巴结转移;2.右肺支气管炎、肺气肿改变。左主支气管及其分支管壁明显增厚,管腔狭窄。左肺上叶尖后段至下叶背段见巨大空洞影,9.2CM×5.1CM×6.0CM,宽基底贴于胸膜,内壁不甚规整,CT值24HU-36HU,邻近胸膜腔少量积液,该病灶上方见少许纤维条索、肺大泡、小钙化点。左肺上叶尖后段亦见一1.7CM×2.2CM×1.5CM结节影,宽基底连于胸膜,CT值39HU。左肺下叶胸膜下见直径3.0CM-0.9CM多个结节,大者贴近胸膜,相应胸膜增厚。右肺上叶透过度不均,见多个大小不等泡状影。右肺上叶、中叶、下叶分别见少许小点片模糊影。纵隔内气管隆凸下见最大截面3.0CM×2.1CM肿大淋巴结,左下肺门见一直径1.8CM肿大淋巴结,纵隔内另见多个小淋巴结。左腋窝见直径2.8CM肿大淋巴结。心脏大血管未见明显异常。</t>
+          <t>1.左肺中心型肺癌；左胸膜及胸膜下肺内多发结节转移；纵膈及左腋窝肿大淋巴结转移；2.右肺支气管炎、肺气肿改变。左主支气管及其分支管壁明显增厚，管腔狭窄。左肺上叶尖后段至下叶背段见巨大空洞影，9.2CM×5.1CM×6.0CM，宽基底贴于胸膜，内壁不甚规整，CT值24HU-36HU，邻近胸膜腔少量积液，该病灶上方见少许纤维条索、肺大泡、小钙化点。左肺上叶尖后段亦见一1.7CM×2.2CM×1.5CM结节影，宽基底连于胸膜，CT值39HU。左肺下叶胸膜下见直径3.0CM-0.9CM多个结节，大者贴近胸膜，相应胸膜增厚。右肺上叶透过度不均，见多个大小不等泡状影。右肺上叶、中叶、下叶分别见少许小点片模糊影。纵隔内气管隆凸下见最大截面3.0CM×2.1CM肿大淋巴结，左下肺门见一直径1.8CM肿大淋巴结，纵隔内另见多个小淋巴结。左腋窝见直径2.8CM肿大淋巴结。心脏大血管未见明显异常。</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>所示右侧乳腺组织缺如,右乳腺区及右肺上叶近纵隔区见类圆形及团片状肿块影,最大径约8.4CM,CT值37HU,边界不清,周边见片状模糊影。双肺内见多发大小不一类圆形高密度影,大者径约2.0CM。右肺中叶可见片状高密度影。大血管管壁未见钙化。右侧胸腔可见积液征象。胸骨骨质欠规整,内可见结节状高密度影。右内乳淋巴结、纵隔及颈部见多发肿大淋巴结,部分似见融合。所示层面肝脏见多发片状低密度影。对比2012-12-28胸部CT:1.右乳腺癌术后复发改变,右内乳淋巴结、纵隔及颈部多发淋巴结转移,双肺多发转移,胸骨转移,右侧胸壁软组织转移,较前片病变明显进展,右肺上叶近纵隔区转移灶较前明显变大,请结合临床;2.右肺中叶炎症,较前明显;3.右侧胸腔积液,较前新发;4.肝脏病变,结合腹部CT详查。</t>
+          <t>所示右侧乳腺组织缺如，右乳腺区及右肺上叶近纵隔区见类圆形及团片状肿块影，最大径约8.4CM，CT值37HU，边界不清，周边见片状模糊影。双肺内见多发大小不一类圆形高密度影，大者径约2.0CM。右肺中叶可见片状高密度影。大血管管壁未见钙化。右侧胸腔可见积液征象。胸骨骨质欠规整，内可见结节状高密度影。右内乳淋巴结、纵隔及颈部见多发肿大淋巴结，部分似见融合。所示层面肝脏见多发片状低密度影。对比2012-12-28胸部CT：1.右乳腺癌术后复发改变，右内乳淋巴结、纵隔及颈部多发淋巴结转移，双肺多发转移，胸骨转移，右侧胸壁软组织转移，较前片病变明显进展，右肺上叶近纵隔区转移灶较前明显变大，请结合临床；2.右肺中叶炎症，较前明显；3.右侧胸腔积液，较前新发；4.肝脏病变，结合腹部CT详查。</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1082,7 +1082,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1.右乳癌并右侧腋窝淋巴结转移2.双肺类结节灶,考虑转移可能性大3.纵隔淋巴结肿大右乳内上象限可见较大不规则软组织密度肿块及小结节灶,大者截面大小约2.8CM×2.2CM,边缘较模糊,与周围腺体分界欠清,增强后呈较显著强化。右侧腋窝可见肿大淋巴结,大者短径约1.3CM。左乳及左侧腋窝未见明显肿大淋巴结。双侧肺野内可见散在小结节灶,边界较模糊,大者直径约0.3CM。纵隔内主动脉弓旁可见肿大淋巴结,大者短径约1.1CM。</t>
+          <t>1.右乳癌并右侧腋窝淋巴结转移2.双肺类结节灶，考虑转移可能性大3.纵隔淋巴结肿大右乳内上象限可见较大不规则软组织密度肿块及小结节灶，大者截面大小约2.8CM×2.2CM，边缘较模糊，与周围腺体分界欠清，增强后呈较显著强化。右侧腋窝可见肿大淋巴结，大者短径约1.3CM。左乳及左侧腋窝未见明显肿大淋巴结。双侧肺野内可见散在小结节灶，边界较模糊，大者直径约0.3CM。纵隔内主动脉弓旁可见肿大淋巴结，大者短径约1.1CM。</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1104,7 +1104,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>左肺肋胸膜、膈胸膜、斜裂胸膜广泛明显增厚,最厚约1.5CM,CT值约30HU。两肺纹理增强,双肺野内见多发大小不等密度增高影,部分呈磨玻璃密度改变,大者约1.8CM×1.2CM;右肺上叶尖段见囊状透过度增高区。所示气管支气管影正常。纵隔内见多发小淋巴结影,大者短径0.8CM。两胸腔无积液征象。主动脉管壁见钙化影。胸3椎体见结节样致密影。1.左侧胸膜恶性肿瘤,对比2012.09.18CT,病变范围略小;双肺、胸3椎体转移,纵隔淋巴结稍大,较前相仿;2.右肺上叶肺大泡。</t>
+          <t>左肺肋胸膜、膈胸膜、斜裂胸膜广泛明显增厚，最厚约1.5CM，CT值约30HU。两肺纹理增强，双肺野内见多发大小不等密度增高影，部分呈磨玻璃密度改变，大者约1.8CM×1.2CM；右肺上叶尖段见囊状透过度增高区。所示气管支气管影正常。纵隔内见多发小淋巴结影，大者短径0.8CM。两胸腔无积液征象。主动脉管壁见钙化影。胸3椎体见结节样致密影。1.左侧胸膜恶性肿瘤，对比2012.09.18CT，病变范围略小；双肺、胸3椎体转移，纵隔淋巴结稍大，较前相仿；2.右肺上叶肺大泡。</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1121,7 +1121,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1.考虑右肺下叶周围型肺癌,纵隔淋巴结转移,双肺多个小结节影,请结合临床随诊及相关其它检查;2.支气管炎;3.右肺上叶索条影,左肺上叶小钙化灶;4.胸骨及部分胸椎密度不均匀。右肺下叶可见分叶状软组织密度肿块影,大小约为2.9CM×2.2CM,CT值约为54HU,病灶边缘见细小毛糙,其近端可见血管集束,远端可见胸膜凹陷,增强扫描肿块可见强化,三期CT值分别为85HU、64HU、49HU。双肺内可见多个小结节影。双肺纹理增多、紊乱,模糊不清。纵隔内见增大的淋巴结影,增强扫描可见明显不均匀强化;两胸腔无积液征象;心脏未见异常。胸骨及部分胸椎密度不均匀。</t>
+          <t>1.考虑右肺下叶周围型肺癌，纵隔淋巴结转移，双肺多个小结节影，请结合临床随诊及相关其它检查；2.支气管炎；3.右肺上叶索条影，左肺上叶小钙化灶；4.胸骨及部分胸椎密度不均匀。右肺下叶可见分叶状软组织密度肿块影，大小约为2.9CM×2.2CM，CT值约为54HU，病灶边缘见细小毛糙，其近端可见血管集束，远端可见胸膜凹陷，增强扫描肿块可见强化，三期CT值分别为85HU、64HU、49HU。双肺内可见多个小结节影。双肺纹理增多、紊乱，模糊不清。纵隔内见增大的淋巴结影，增强扫描可见明显不均匀强化；两胸腔无积液征象；心脏未见异常。胸骨及部分胸椎密度不均匀。</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1143,7 +1143,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>右侧肾上腺区见团块影,边缘清晰,大小约7.3CM×6.4CM,CT值约为15-31HU,右肾受压。肝左内叶见一类圆形低密度影,径约2.6CM,边界略模糊,CT值25HU。右肾实质内见一类圆形低密度影,径约0.85CM,CT值15HU。胆囊底部见高密度影。脾不、胰腺大小形态及密度正常。腹膜后未见肿大淋巴结。食道下段管壁增厚,管腔变窄,最厚处约2.2CM,周围见增大淋巴结影,径约2.29CM。1、对比2014.05.05上腹CT片:食管下段癌伴周围淋巴结增大较前相仿,右肾上腺区肿块较前增大,右肾囊肿较前相仿;2、肝左内叶圆形低密度影,转移可能性大;3、胆囊底部改变,伪影可能大。</t>
+          <t>右侧肾上腺区见团块影，边缘清晰，大小约7.3CM×6.4CM，CT值约为15-31HU，右肾受压。肝左内叶见一类圆形低密度影，径约2.6CM，边界略模糊，CT值25HU。右肾实质内见一类圆形低密度影，径约0.85CM，CT值15HU。胆囊底部见高密度影。脾不、胰腺大小形态及密度正常。腹膜后未见肿大淋巴结。食道下段管壁增厚，管腔变窄，最厚处约2.2CM，周围见增大淋巴结影，径约2.29CM。1、对比2014.05.05上腹CT片：食管下段癌伴周围淋巴结增大较前相仿，右肾上腺区肿块较前增大，右肾囊肿较前相仿；2、肝左内叶圆形低密度影，转移可能性大；3、胆囊底部改变，伪影可能大。</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1165,7 +1165,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1.考虑右肺下叶周围型肺癌可能,双肺多发转移,右胸膜转移,较2015-04-10CT未见明显变化;2.右侧胸腔积液;心包积液;3.甲状腺大;4.左侧第6前肋局部密度增高,较前相仿;请结合临床。右肺下叶可见团块影,与右肺门影分界不清,边界欠清,CT值约为30HU,其内密度不均,大小约为6.27CM×3.97CM,邻近肺组织可见模糊影,右肺下叶内基底段支气管不通。双肺可见多发的大小不等的小结节影,大者径长约2.0CM;右肺斜裂增厚、右肺中叶条片状高密度影。纵隔内可见多发肿大的淋巴结。右侧胸腔积液征象。心包积液。甲状腺明显肿大。右侧胸壁下可见结节影,径约0.6CM。左侧第6前肋局部密度增高。</t>
+          <t>1.考虑右肺下叶周围型肺癌可能，双肺多发转移，右胸膜转移，较2015-04-10CT未见明显变化；2.右侧胸腔积液；心包积液；3.甲状腺大；4.左侧第6前肋局部密度增高，较前相仿；请结合临床。右肺下叶可见团块影，与右肺门影分界不清，边界欠清，CT值约为30HU，其内密度不均，大小约为6.27CM×3.97CM，邻近肺组织可见模糊影，右肺下叶内基底段支气管不通。双肺可见多发的大小不等的小结节影，大者径长约2.0CM；右肺斜裂增厚、右肺中叶条片状高密度影。纵隔内可见多发肿大的淋巴结。右侧胸腔积液征象。心包积液。甲状腺明显肿大。右侧胸壁下可见结节影，径约0.6CM。左侧第6前肋局部密度增高。</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1187,7 +1187,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>右肺下叶背段见类圆形肿块影,径约.56CM,边缘毛糙,可见血管进入,牵拉邻近胸膜,其内密度不均,平扫CT值约32HU,增强扫描可见轻度强化。右下肺散在斑片影。右肺门及纵隔内可见多发肿大淋巴结影,大者短径约1.95CM。两胸腔无积液征象。心脏大血管未见异常。右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移;右下肺散在炎症。</t>
+          <t>右肺下叶背段见类圆形肿块影，径约.56CM，边缘毛糙，可见血管进入，牵拉邻近胸膜，其内密度不均，平扫CT值约32HU，增强扫描可见轻度强化。右下肺散在斑片影。右肺门及纵隔内可见多发肿大淋巴结影，大者短径约1.95CM。两胸腔无积液征象。心脏大血管未见异常。右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移；右下肺散在炎症。</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1196,7 +1196,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>肝脏欠光滑,肝内外胆管未见扩张。肝右叶可见团块状异常密度影,边界清楚,大者约:6.45CM×6.48CM,CT值约:66-35HU,增强96、104、78HU;其旁另见低密度影,边界不清,大小约:3.6CM×3.45CM,CT值约33HU,增强三期CT值约:104、99、87HU;肝右叶及肝被膜下另见小结节状低密度影,增强动脉期明显强化,静脉期及延迟期显示欠佳;肝内多发点状不强化区;腹膜后多发稍大淋巴结;胆囊壁不厚。脾脏增大;胰腺异常密度影。肝周少量积液。1.肝右叶多发病变,考虑肝癌可能,部分病变内合并出血;肝右叶及被膜下小结节灶,考虑转移瘤可能;腹膜后稍大淋巴结,请结合临床;2.肝内多发小囊肿;3.肝周少量积液。</t>
+          <t>肝脏欠光滑，肝内外胆管未见扩张。肝右叶可见团块状异常密度影，边界清楚，大者约：6.45CM×6.48CM，CT值约：66-35HU，增强96、104、78HU；其旁另见低密度影，边界不清，大小约：3.6CM×3.45CM，CT值约33HU，增强三期CT值约：104、99、87HU；肝右叶及肝被膜下另见小结节状低密度影，增强动脉期明显强化，静脉期及延迟期显示欠佳；肝内多发点状不强化区；腹膜后多发稍大淋巴结；胆囊壁不厚。脾脏增大；胰腺异常密度影。肝周少量积液。1.肝右叶多发病变，考虑肝癌可能，部分病变内合并出血；肝右叶及被膜下小结节灶，考虑转移瘤可能；腹膜后稍大淋巴结，请结合临床；2.肝内多发小囊肿；3.肝周少量积液。</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1218,7 +1218,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>左乳术后,术区结构紊乱,肌肉,密度欠均质,术区未见异常强化灶。左侧腋窝结构紊乱。右乳未见异常。双侧内乳区、双侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰,未见结节及异常强化灶。肝脏密度减低;肝右后叶内见片状密度增高影,其强化方式与同层腹主动脉相似。胆囊充盈可,其内见点状致密影。胰、脾、右侧肾上腺及扫描范围内双肾未见异常。左侧肾上腺见软组织结节灶,短径约1.6CM,增强后轻度强化。骨窗示胸骨及T12胸椎示不规则骨质改变。1.结合临床,左乳癌术后;骨转移较前2015-1-15变化不著2.肝右后叶片状密度增高影,考虑动静脉瘘形成3.胆囊结石4.左侧肾上腺结节灶,较前略增大5.脂肪肝</t>
+          <t>左乳术后，术区结构紊乱，肌肉，密度欠均质，术区未见异常强化灶。左侧腋窝结构紊乱。右乳未见异常。双侧内乳区、双侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰，未见结节及异常强化灶。肝脏密度减低；肝右后叶内见片状密度增高影，其强化方式与同层腹主动脉相似。胆囊充盈可，其内见点状致密影。胰、脾、右侧肾上腺及扫描范围内双肾未见异常。左侧肾上腺见软组织结节灶，短径约1.6CM，增强后轻度强化。骨窗示胸骨及T12胸椎示不规则骨质改变。1.结合临床，左乳癌术后；骨转移较前2015-1-15变化不著2.肝右后叶片状密度增高影，考虑动静脉瘘形成3.胆囊结石4.左侧肾上腺结节灶，较前略增大5.脂肪肝</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1235,7 +1235,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>左乳外侧局部结构紊乱,局部可见小斑片状强化影。左肺下叶见索条影。左肺下叶胸膜下见一直径不足0.5CM小类结节灶。双侧腋窝、胸肌间及左锁上见短径不足1.0CM小淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。左侧肾上腺饱满,肝、胆、胰、脾、右侧肾上腺及双肾未见异常。腹腔及腹膜后、膈上见大者短径约0.5CM小淋巴结。宫颈体积稍大,强化不均。宫体体积不规则增大,见多发软组织密度灶,增强后呈不均匀强化。双侧附件饱满。膀胱充盈良好,壁未见增厚。盆腔内髂血管旁、骶前见短径不足0.5CM小淋巴结。多发椎骨及胸骨密度不均,部分周围示软组织密度影,以胸椎周围为著,与邻近结构分界不清。双侧坐骨局限性骨质密度减低。右侧部分肋骨骨质中断。1.结合临床,左乳癌术后,术区小片影,较前(2016-2-14)范围略缩小;宫颈转移治疗后,变化不著;骨转移,较前胸椎周围软组织密度增大,余基本变化不著2.左肺下叶类结节灶,变化不著;左肺纤维灶3.考虑子宫肌瘤,变化不著4.双侧附件略饱满,变化不著5.双侧腋窝、左锁上、腹腔、腹膜后及盆腔小淋巴结,变化不著6.双侧坐骨局限性骨质密度减低,右侧部分肋骨骨折,均变化不著</t>
+          <t>左乳外侧局部结构紊乱，局部可见小斑片状强化影。左肺下叶见索条影。左肺下叶胸膜下见一直径不足0.5CM小类结节灶。双侧腋窝、胸肌间及左锁上见短径不足1.0CM小淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。左侧肾上腺饱满，肝、胆、胰、脾、右侧肾上腺及双肾未见异常。腹腔及腹膜后、膈上见大者短径约0.5CM小淋巴结。宫颈体积稍大，强化不均。宫体体积不规则增大，见多发软组织密度灶，增强后呈不均匀强化。双侧附件饱满。膀胱充盈良好，壁未见增厚。盆腔内髂血管旁、骶前见短径不足0.5CM小淋巴结。多发椎骨及胸骨密度不均，部分周围示软组织密度影，以胸椎周围为著，与邻近结构分界不清。双侧坐骨局限性骨质密度减低。右侧部分肋骨骨质中断。1.结合临床，左乳癌术后，术区小片影，较前(2016-2-14)范围略缩小；宫颈转移治疗后，变化不著；骨转移，较前胸椎周围软组织密度增大，余基本变化不著2.左肺下叶类结节灶，变化不著；左肺纤维灶3.考虑子宫肌瘤，变化不著4.双侧附件略饱满，变化不著5.双侧腋窝、左锁上、腹腔、腹膜后及盆腔小淋巴结，变化不著6.双侧坐骨局限性骨质密度减低，右侧部分肋骨骨折，均变化不著</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>右肺上叶尖段支气管闭塞,前段及后段支气管管壁略厚,管腔狭窄,可见团块状稍高密度影,大小约5.0CM×4.7CM,可见浅分叶,边缘可见细短毛刺,CT值约42HU,右上支气管受压变窄,增强后扫描呈不均匀强化;上腔静脉管腔狭窄,其内可疑充盈缺损;右肺中叶、下叶、左舌段可见索条灶,左肺下叶见片状高密度影;左肺下叶近斜裂可见小结节影,径约0.4CM。双肺见多发局限性透亮影。纵隔内可见增大的淋巴结,部分融合,短径约1.8CM;右侧锁骨上淋巴结增大,大者短径约0.9CM。两胸腔无积液征象,右侧胸膜局限性增厚。心包内可见条形液体密度影,大血管未见异常。1.右肺上叶团块影,考虑中央型肺癌,较2016.9.27CT明显减小,纵隔、右侧锁骨上淋巴结转移,较前稍减小;上腔静脉管腔狭窄,较前相仿;请结合临床;2.肺气肿;双肺索条灶;左肺下叶少许炎性改变,较前相仿;3.心包积液,较前减少;4.左侧斜裂小结节,较前相仿。</t>
+          <t>右肺上叶尖段支气管闭塞，前段及后段支气管管壁略厚，管腔狭窄，可见团块状稍高密度影，大小约5.0CM×4.7CM，可见浅分叶，边缘可见细短毛刺，CT值约42HU，右上支气管受压变窄，增强后扫描呈不均匀强化；上腔静脉管腔狭窄，其内可疑充盈缺损；右肺中叶、下叶、左舌段可见索条灶，左肺下叶见片状高密度影；左肺下叶近斜裂可见小结节影，径约0.4CM。双肺见多发局限性透亮影。纵隔内可见增大的淋巴结，部分融合，短径约1.8CM；右侧锁骨上淋巴结增大，大者短径约0.9CM。两胸腔无积液征象，右侧胸膜局限性增厚。心包内可见条形液体密度影，大血管未见异常。1.右肺上叶团块影，考虑中央型肺癌，较2016.9.27CT明显减小，纵隔、右侧锁骨上淋巴结转移，较前稍减小；上腔静脉管腔狭窄，较前相仿；请结合临床；2.肺气肿；双肺索条灶；左肺下叶少许炎性改变，较前相仿；3.心包积液，较前减少；4.左侧斜裂小结节，较前相仿。</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1274,7 +1274,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>右肺门区见不规则团块影,边界欠清,大小约4.09CM×3.75CM。CT值约46HU,右肺中叶内侧段支气管截断,右肺中叶内侧段肺不张。双肺见多发大小不等结节影,较大者长径约1.4CM。纵隔内见多发稍大淋巴结。心影不大,心包增厚。片示甲状腺双叶体积增大,胸骨后可见甲状腺影,其内密度不均。双侧部分肋骨、部分胸椎椎体内见结节样高密度影,部分骨质破坏。1.右肺中央型肺癌并右肺中叶内侧段肺不张,双肺所发小结节,考虑转移,左侧胸腔积液,请结合临床;2.纵隔内多发稍大淋巴结,转移可能;3.双侧部分肋骨、部分胸椎椎体改变,考虑转移;4.甲状腺双叶改变,请详查。</t>
+          <t>右肺门区见不规则团块影，边界欠清，大小约4.09CM×3.75CM。CT值约46HU，右肺中叶内侧段支气管截断，右肺中叶内侧段肺不张。双肺见多发大小不等结节影，较大者长径约1.4CM。纵隔内见多发稍大淋巴结。心影不大，心包增厚。片示甲状腺双叶体积增大，胸骨后可见甲状腺影，其内密度不均。双侧部分肋骨、部分胸椎椎体内见结节样高密度影，部分骨质破坏。1.右肺中央型肺癌并右肺中叶内侧段肺不张，双肺所发小结节，考虑转移，左侧胸腔积液，请结合临床；2.纵隔内多发稍大淋巴结，转移可能；3.双侧部分肋骨、部分胸椎椎体改变，考虑转移；4.甲状腺双叶改变，请详查。</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>右肺见散在条索影,边界稍模糊。左肺下叶后基底段可见小结节状致密影。左肺门形态饱满,可见一软组织肿块影,并延续到左肺下叶,其内密度稍欠均匀,平扫CT值约为0-31HU,增强强化不均,平均三期CT值分别约为56HU、55HU、51HU,左肺上叶支气管稍变窄,气管内壁稍欠光整,左肺下叶外侧基底段及背段支气管闭塞,部分支气管狭窄,病变周围可见片絮状模糊密度增高影及多发条索影。左肺下叶前基底段(HR155)可见小结节状高密度影,径约为0.6CM,界清。纵隔内可见多发肿大淋巴结,较大者短径约为2.0CM。两侧胸腔无积液征象。部分大血管管壁及冠脉走行区可见致密影。1.左肺肺门及左肺下叶肿块,考虑肺癌,伴纵隔淋巴结转移,周围阻塞性肺炎;2.左肺下叶前基底段小结节,随诊;3.右肺散在条索灶,左肺下叶后基底段钙化灶。</t>
+          <t>右肺见散在条索影，边界稍模糊。左肺下叶后基底段可见小结节状致密影。左肺门形态饱满，可见一软组织肿块影，并延续到左肺下叶，其内密度稍欠均匀，平扫CT值约为0-31HU，增强强化不均，平均三期CT值分别约为56HU、55HU、51HU，左肺上叶支气管稍变窄，气管内壁稍欠光整，左肺下叶外侧基底段及背段支气管闭塞，部分支气管狭窄，病变周围可见片絮状模糊密度增高影及多发条索影。左肺下叶前基底段(HR155)可见小结节状高密度影，径约为0.6CM，界清。纵隔内可见多发肿大淋巴结，较大者短径约为2.0CM。两侧胸腔无积液征象。部分大血管管壁及冠脉走行区可见致密影。1.左肺肺门及左肺下叶肿块，考虑肺癌，伴纵隔淋巴结转移，周围阻塞性肺炎；2.左肺下叶前基底段小结节，随诊；3.右肺散在条索灶，左肺下叶后基底段钙化灶。</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1313,7 +1313,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>两肺野未见异常密度影。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。左侧乳房内可见软组织团块,直径约2.7CM,CT值约41HU,胸大肌完好;增强扫描,CT值约54、81、88HU。左侧腋窝淋巴结明显增大,最大直径约2.4CM,增强扫描不均匀强化,可见内部不规则略低密度区。1、左侧乳腺癌征象,并左侧腋窝淋巴结转移;2、心肺CT平扫未见异常。</t>
+          <t>两肺野未见异常密度影。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。左侧乳房内可见软组织团块，直径约2.7CM，CT值约41HU，胸大肌完好；增强扫描，CT值约54、81、88HU。左侧腋窝淋巴结明显增大，最大直径约2.4CM，增强扫描不均匀强化，可见内部不规则略低密度区。1、左侧乳腺癌征象，并左侧腋窝淋巴结转移；2、心肺CT平扫未见异常。</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1335,7 +1335,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1.左肺上叶中心型肺癌并阻塞性肺炎与阻塞性肺不张,主动脉弓旁、纵隔及左肺门淋巴结转移,较前2011-11-16未见明显变化;2.右肺小结节,较前片2011-11-16未见明显变化;3.左侧肾上腺增粗,较前片未见明显变化。左肺上叶见团片状高密度影,最大截面大小约为5.3CM×2.3CM,CT值约50HU,增强后明显不均匀强化,三期CT值约145HU、83HU、79HU,病灶周围可见小片状模糊高密度影。右肺上叶近水平裂见一径约0.5CM结节。左主动脉弓旁、纵隔及左肺门淋巴结增大,大者短径约3.9CM,增强后环形强化。两胸腔无积液征象。心脏大血管形态未见异常。左侧肾上腺内支稍粗。</t>
+          <t>1.左肺上叶中心型肺癌并阻塞性肺炎与阻塞性肺不张，主动脉弓旁、纵隔及左肺门淋巴结转移，较前2011-11-16未见明显变化；2.右肺小结节，较前片2011-11-16未见明显变化；3.左侧肾上腺增粗，较前片未见明显变化。左肺上叶见团片状高密度影，最大截面大小约为5.3CM×2.3CM，CT值约50HU，增强后明显不均匀强化，三期CT值约145HU、83HU、79HU，病灶周围可见小片状模糊高密度影。右肺上叶近水平裂见一径约0.5CM结节。左主动脉弓旁、纵隔及左肺门淋巴结增大，大者短径约3.9CM，增强后环形强化。两胸腔无积液征象。心脏大血管形态未见异常。左侧肾上腺内支稍粗。</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1357,7 +1357,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1.左侧中央型肺癌伴纵隔多发淋巴结转移,左肺上叶部分不张;2.胸椎多发致密度影,考虑转移,请结合临床;3.左侧腋窝、颈部淋巴结转移可能大,双侧甲状腺占位,请结合临床;4.双侧胸腔、左侧叶间裂、心包积液,较2011-06-15CT所示,左侧胸腔积液减轻;5.所示肝脏多发转移可能性大。左侧肺门区可见团状软组织密度影,其内可见多发小片状高密度影及支气管气像,大小约5.79CM×6.77CM,CT值约32HU,左肺上叶部分肺组织实变,与肺门团块影分界不清。左肺、右肺上叶可见多发片状模糊阴影。纵隔、左侧腋窝及颈部可见多发淋巴结增大,大者短径约2.04CM。双侧胸腔、心包可见水样密度影条,以左侧为著,部分形成包裹,左侧叶间裂可见积液。部分胸椎椎体可见片状致密影。所示层面肝脏多个类圆形低密度影,部分边界不清。甲状腺左右叶可见多发稍低密度影。</t>
+          <t>1.左侧中央型肺癌伴纵隔多发淋巴结转移，左肺上叶部分不张；2.胸椎多发致密度影，考虑转移，请结合临床；3.左侧腋窝、颈部淋巴结转移可能大，双侧甲状腺占位，请结合临床；4.双侧胸腔、左侧叶间裂、心包积液，较2011-06-15CT所示，左侧胸腔积液减轻；5.所示肝脏多发转移可能性大。左侧肺门区可见团状软组织密度影，其内可见多发小片状高密度影及支气管气像，大小约5.79CM×6.77CM，CT值约32HU，左肺上叶部分肺组织实变，与肺门团块影分界不清。左肺、右肺上叶可见多发片状模糊阴影。纵隔、左侧腋窝及颈部可见多发淋巴结增大，大者短径约2.04CM。双侧胸腔、心包可见水样密度影条，以左侧为著，部分形成包裹，左侧叶间裂可见积液。部分胸椎椎体可见片状致密影。所示层面肝脏多个类圆形低密度影，部分边界不清。甲状腺左右叶可见多发稍低密度影。</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1379,7 +1379,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>左上肺门可见肿块影,形状不规则,分叶状,边界不清,边缘可见细小毛刺,病灶最大截面大小为5.5CM×7.3CM,CT值为36HU,周围可见多发斑片影,左肺上叶支气管截断,纵隔及左侧肺门可见多发肿大淋巴结,部分相互融合,大者径约2.3CM×3.7CM;纵隔内可见稍大淋巴结影,较大者径约2.3CM;左肺动脉形态不规整。双肺支气管血管束增强、紊乱,双肺可见多发圆泡状薄壁透亮影;双肺下叶小叶间隔增厚,呈网格状改变;双侧胸腔见液性密度影;双侧胸膜增厚。心影增大,主动脉及冠状动脉可见钙化。左侧肋骨多发骨质不规整。所示胆囊内可见多发结节状致密影,左肾上极可见类圆形低密度影。1.左肺上叶中央型肺癌并阻塞性炎症,左肺门及纵隔多发淋巴结转移,左肺动脉受侵,与2015-01-08相比,较前进展,请结合临床;2.支气管炎、肺大泡;双肺下叶间质改变;3.双侧胸膜增厚;双侧胸腔积液,较前进展;4.左侧多发肋骨形态不整,较前相仿;5.所示腹部改变,请结合相关检查。</t>
+          <t>左上肺门可见肿块影，形状不规则，分叶状，边界不清，边缘可见细小毛刺，病灶最大截面大小为5.5CM×7.3CM，CT值为36HU，周围可见多发斑片影，左肺上叶支气管截断，纵隔及左侧肺门可见多发肿大淋巴结，部分相互融合，大者径约2.3CM×3.7CM；纵隔内可见稍大淋巴结影，较大者径约2.3CM；左肺动脉形态不规整。双肺支气管血管束增强、紊乱，双肺可见多发圆泡状薄壁透亮影；双肺下叶小叶间隔增厚，呈网格状改变；双侧胸腔见液性密度影；双侧胸膜增厚。心影增大，主动脉及冠状动脉可见钙化。左侧肋骨多发骨质不规整。所示胆囊内可见多发结节状致密影，左肾上极可见类圆形低密度影。1.左肺上叶中央型肺癌并阻塞性炎症，左肺门及纵隔多发淋巴结转移，左肺动脉受侵，与2015-01-08相比，较前进展，请结合临床；2.支气管炎、肺大泡；双肺下叶间质改变；3.双侧胸膜增厚；双侧胸腔积液，较前进展；4.左侧多发肋骨形态不整，较前相仿；5.所示腹部改变，请结合相关检查。</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1397,7 +1397,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>右乳术后,术区壁未见增厚及异常强化。右侧腋窝结构紊乱,未见占位性病变。左乳及腋窝内未见异常密度灶。双侧内乳区、双侧肺门及纵隔未见增大淋巴结。双肺野内可见数个小结节灶,大者直径约0.6CM,边界欠清。肝脏密度普遍性减低,实质内见数个结节灶,大者直径约3.5CM,边缘有强化。胆囊、胰腺、脾、左肾、肾上腺未见异常,右肾内示一囊性低密度灶,边界清。腹膜后胰头后方、门腔间隙、腹主动脉旁可见数个结节灶,大者短径约1.0CM。各咽壁不厚,双侧颈部未见肿大淋巴结影。腮腺及双侧甲状腺未见异常。子宫未见显示,阴道残端未见增厚及异常强化。膀胱充盈可,壁不厚。盆腔内未见积液及肿大淋巴结。双侧腹股沟区示小淋巴结,大者短径约0.6CM。骨窗显示T1椎体显示不均匀骨质破坏。1.结合临床,右乳癌术后改变;肝内多发占位,结合临床,考虑转移较前自带CT片2015-5-11略进展;T1椎体不均匀骨质破坏,考虑转移,较前变化不著2.脂肪肝;3.右肾囊肿;4.腹膜后淋巴结肿大,较前变化不著;5.双肺小结节灶,较前变化不著,建议观察。</t>
+          <t>右乳术后，术区壁未见增厚及异常强化。右侧腋窝结构紊乱，未见占位性病变。左乳及腋窝内未见异常密度灶。双侧内乳区、双侧肺门及纵隔未见增大淋巴结。双肺野内可见数个小结节灶，大者直径约0.6CM，边界欠清。肝脏密度普遍性减低，实质内见数个结节灶，大者直径约3.5CM，边缘有强化。胆囊、胰腺、脾、左肾、肾上腺未见异常，右肾内示一囊性低密度灶，边界清。腹膜后胰头后方、门腔间隙、腹主动脉旁可见数个结节灶，大者短径约1.0CM。各咽壁不厚，双侧颈部未见肿大淋巴结影。腮腺及双侧甲状腺未见异常。子宫未见显示，阴道残端未见增厚及异常强化。膀胱充盈可，壁不厚。盆腔内未见积液及肿大淋巴结。双侧腹股沟区示小淋巴结，大者短径约0.6CM。骨窗显示T1椎体显示不均匀骨质破坏。1.结合临床，右乳癌术后改变；肝内多发占位，结合临床，考虑转移较前自带CT片2015-5-11略进展；T1椎体不均匀骨质破坏，考虑转移，较前变化不著2.脂肪肝；3.右肾囊肿；4.腹膜后淋巴结肿大，较前变化不著；5.双肺小结节灶，较前变化不著，建议观察。</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1414,7 +1414,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1.右肺上叶前段中心型肺癌并阻塞性炎症,请结合纤维支气管镜检查;2.右肺下叶背段小结节,转移瘤不除外,随诊。右肺上叶前段见不规则团块影,可见分叶征及血管集束征,肿块大小约为2.20CM×1.87CM,CT值约为28HU,增强后三期CT值约为94、87、68HU。周围见片状模糊影。右肺下叶背段见小结节影,两肺门区未见异常。所示气管支气管影正常。纵隔内未见增大的淋巴结。两胸腔无积液征象。主动脉及冠状动脉管壁见钙化影。</t>
+          <t>1.右肺上叶前段中心型肺癌并阻塞性炎症，请结合纤维支气管镜检查；2.右肺下叶背段小结节，转移瘤不除外，随诊。右肺上叶前段见不规则团块影，可见分叶征及血管集束征，肿块大小约为2.20CM×1.87CM，CT值约为28HU，增强后三期CT值约为94、87、68HU。周围见片状模糊影。右肺下叶背段见小结节影，两肺门区未见异常。所示气管支气管影正常。纵隔内未见增大的淋巴结。两胸腔无积液征象。主动脉及冠状动脉管壁见钙化影。</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1436,7 +1436,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>双侧胸廓不对称,右侧胸廓塌陷,右肺体积减小,右肺下叶见团块状高密度影,形态不规则,边界不清楚,大小约4.2CM×5.2CM,CT值约37HU,右侧主支气管及各叶支气管受压变窄;右侧胸膜弥漫性增厚,右肺间隔结节样增厚;右侧胸腔可见包裹性积液;右侧腋窝、纵隔淋巴结增大,大者短径约1.4CM。左肺下叶外基底段(S34)可见粟粒影。心影大小正常范围。右侧第2、4、6、7、8肋骨、胸3椎体骨质密度不均匀增高,形态不规整。右侧乳腺外上象限内见一结节影,径约1.0CM,边界清晰,其内见点状钙化。1.右下肺中心型肺癌,并右肺间质性改变,考虑淋巴道转移,右侧胸膜转移,右侧胸腔包裹性积液;右侧腋窝及纵隔淋巴结转移;右侧多个肋骨、胸3椎体成骨性转移;较2014.01.14CT相仿,请结合临床;2.右乳钙化结节,较前相仿;3.左肺下叶外基底段粟粒灶,较前相仿。</t>
+          <t>双侧胸廓不对称，右侧胸廓塌陷，右肺体积减小，右肺下叶见团块状高密度影，形态不规则，边界不清楚，大小约4.2CM×5.2CM，CT值约37HU，右侧主支气管及各叶支气管受压变窄；右侧胸膜弥漫性增厚，右肺间隔结节样增厚；右侧胸腔可见包裹性积液；右侧腋窝、纵隔淋巴结增大，大者短径约1.4CM。左肺下叶外基底段(S34)可见粟粒影。心影大小正常范围。右侧第2、4、6、7、8肋骨、胸3椎体骨质密度不均匀增高，形态不规整。右侧乳腺外上象限内见一结节影，径约1.0CM，边界清晰，其内见点状钙化。1.右下肺中心型肺癌，并右肺间质性改变，考虑淋巴道转移，右侧胸膜转移，右侧胸腔包裹性积液；右侧腋窝及纵隔淋巴结转移；右侧多个肋骨、胸3椎体成骨性转移；较2014.01.14CT相仿，请结合临床；2.右乳钙化结节，较前相仿；3.左肺下叶外基底段粟粒灶，较前相仿。</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1458,7 +1458,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1.左乳癌术后,肝脏多发转移瘤2.右侧心膈角区淋巴结稍大3.左肺上叶含气囊肿4.双肾小囊肿5.左侧附件区囊肿左乳术后缺如,部分胸肌存在,术区未见明显增厚及异常强化;左侧腋窝术后,结构紊乱。右乳及右侧腋窝未见明确异常。左肺上叶可见类圆形过度充气区,边界清晰,余双侧肺野清晰,肺纹理正常,肺内未见实质性病变影。双侧各叶、段支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。胸腔内未见积液。胸廓诸骨未见骨质破坏。右侧心膈角区淋巴结稍大,短径约0.5CM。肝脏实质内可见多发低密度肿块及结节灶,大者直径约10.1CM,边界欠清,其内可见大片状低密度坏死区。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺形态、大小、密度未见异常。双肾实质内可见散在小囊性密度灶,大者直径约0.3CM,边界清晰,未见强化。腹腔及腹膜后未见增大淋巴结。膀胱充盈可,壁不厚。子宫形态大小密度可,左侧附件区可见一类圆形囊性低密度灶,直径约5.4CM,边界清晰,未见强化。盆腔内未见积液及肿大淋巴结。</t>
+          <t>1.左乳癌术后，肝脏多发转移瘤2.右侧心膈角区淋巴结稍大3.左肺上叶含气囊肿4.双肾小囊肿5.左侧附件区囊肿左乳术后缺如，部分胸肌存在，术区未见明显增厚及异常强化；左侧腋窝术后，结构紊乱。右乳及右侧腋窝未见明确异常。左肺上叶可见类圆形过度充气区，边界清晰，余双侧肺野清晰，肺纹理正常，肺内未见实质性病变影。双侧各叶、段支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。胸腔内未见积液。胸廓诸骨未见骨质破坏。右侧心膈角区淋巴结稍大，短径约0.5CM。肝脏实质内可见多发低密度肿块及结节灶，大者直径约10.1CM，边界欠清，其内可见大片状低密度坏死区。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺形态、大小、密度未见异常。双肾实质内可见散在小囊性密度灶，大者直径约0.3CM，边界清晰，未见强化。腹腔及腹膜后未见增大淋巴结。膀胱充盈可，壁不厚。子宫形态大小密度可，左侧附件区可见一类圆形囊性低密度灶，直径约5.4CM，边界清晰，未见强化。盆腔内未见积液及肿大淋巴结。</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1475,7 +1475,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>双侧胸廓不对称,右侧胸廓塌陷,右肺体积减小,右肺下叶见团块状高密度影,形态不规则,边界不清楚,大小约3.97CM×4.64CM,CT值约29HU,右侧主支气管及下叶支气管受压变窄;右肺野及右胸膜可见高密度结节影,大小不一;右侧胸腔及右侧叶间裂见高密度影,部分包裹,右侧胸腔可见弧形液性密度影,右侧胸膜不均匀增厚。纵隔淋巴结增大,径长者约为1.28CM。心影大小正常范围。右侧第2、4、7、8肋骨骨质密度不均匀增高,形态不规整,其内可见骨质破坏。右侧乳腺内见一结节影,径约0.9CM,边界清晰,其内见点状钙化。1.右下中心型肺癌,右肺多发转移瘤,侵及右侧胸膜,右侧多个肋骨成骨性转移,较2013.04.19CT片,肋骨转移范围扩大;2.右乳钙化结节,较前相仿;3.腹部病变,请结合腹部检查。</t>
+          <t>双侧胸廓不对称，右侧胸廓塌陷，右肺体积减小，右肺下叶见团块状高密度影，形态不规则，边界不清楚，大小约3.97CM×4.64CM，CT值约29HU，右侧主支气管及下叶支气管受压变窄；右肺野及右胸膜可见高密度结节影，大小不一；右侧胸腔及右侧叶间裂见高密度影，部分包裹，右侧胸腔可见弧形液性密度影，右侧胸膜不均匀增厚。纵隔淋巴结增大，径长者约为1.28CM。心影大小正常范围。右侧第2、4、7、8肋骨骨质密度不均匀增高，形态不规整，其内可见骨质破坏。右侧乳腺内见一结节影，径约0.9CM，边界清晰，其内见点状钙化。1.右下中心型肺癌，右肺多发转移瘤，侵及右侧胸膜，右侧多个肋骨成骨性转移，较2013.04.19CT片，肋骨转移范围扩大；2.右乳钙化结节，较前相仿；3.腹部病变，请结合腹部检查。</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>双侧胸廓不对称,右侧胸廓塌陷,右肺体积减小,右肺下叶见高密度肿块影,形态不规则,边界不清楚,大小约1.89CM×3.6CM,CT值约29HU;右肺野及右胸膜可见高密度结节影,大小不一;右侧胸腔及右侧叶间裂见液性密度影,部分形成包裹,右侧胸腔可见弧形液性密度影,右侧胸膜不均匀增厚,邻近肺组织部分受压膨胀不全。右肺门区增大的淋巴结。心影略增大,右侧心膈角区多发结节,右侧第2、8肋骨骨质密度不均匀增高,形态不规整,其内可见骨质破坏。右侧乳腺内见一结节影,径约0.9CM,边界清晰,其内见点状钙化。肝实质密度明显减低。1.右下中心型肺癌,右肺及右侧胸膜多个结节考虑转移,较前CT(201.-03-01)病变进展,右侧胸腔积液,较前增多;纵隔淋巴结增大;2.右侧第2、8肋骨成骨性转移,较前相仿;3.右乳钙化结节,详查;4.脂肪肝。</t>
+          <t>双侧胸廓不对称，右侧胸廓塌陷，右肺体积减小，右肺下叶见高密度肿块影，形态不规则，边界不清楚，大小约1.89CM×3.6CM，CT值约29HU；右肺野及右胸膜可见高密度结节影，大小不一；右侧胸腔及右侧叶间裂见液性密度影，部分形成包裹，右侧胸腔可见弧形液性密度影，右侧胸膜不均匀增厚，邻近肺组织部分受压膨胀不全。右肺门区增大的淋巴结。心影略增大，右侧心膈角区多发结节，右侧第2、8肋骨骨质密度不均匀增高，形态不规整，其内可见骨质破坏。右侧乳腺内见一结节影，径约0.9CM，边界清晰，其内见点状钙化。肝实质密度明显减低。1.右下中心型肺癌，右肺及右侧胸膜多个结节考虑转移，较前CT(201.-03-01)病变进展，右侧胸腔积液，较前增多；纵隔淋巴结增大；2.右侧第2、8肋骨成骨性转移，较前相仿；3.右乳钙化结节，详查；4.脂肪肝。</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1519,7 +1519,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1.左肺中心型肺癌并阻塞性肺炎,较前2011.05.03片缩小,纵隔淋巴结及肺内淋巴道转移,左侧胸腔及叶间积液,较前未见明显变化;2.心包增厚伴少量积液;3.部分胸椎椎体内结节样致密影考虑转移,建议详查。左肺下叶背段支气管处团块影,支气管远端截断,病灶最大层面大小约2.8CM×4.0CM,CT值约51HU,其远端可见条状软组织密度影,双肺多发粟粒影;双肺纹理增强、模糊,余双侧支气管未见确切狭窄征象。右肺门未见明显异常。纵隔内淋巴结肿大,部分融合,大小约1.37CM,心脏不大,心包增厚,最厚约0.92CM;双侧胸膜未见增厚,左侧胸腔弧形液性密度影。部分胸椎椎体内可见结节样致密影。</t>
+          <t>1.左肺中心型肺癌并阻塞性肺炎，较前2011.05.03片缩小，纵隔淋巴结及肺内淋巴道转移，左侧胸腔及叶间积液，较前未见明显变化；2.心包增厚伴少量积液；3.部分胸椎椎体内结节样致密影考虑转移，建议详查。左肺下叶背段支气管处团块影，支气管远端截断，病灶最大层面大小约2.8CM×4.0CM，CT值约51HU，其远端可见条状软组织密度影，双肺多发粟粒影；双肺纹理增强、模糊，余双侧支气管未见确切狭窄征象。右肺门未见明显异常。纵隔内淋巴结肿大，部分融合，大小约1.37CM，心脏不大，心包增厚，最厚约0.92CM；双侧胸膜未见增厚，左侧胸腔弧形液性密度影。部分胸椎椎体内可见结节样致密影。</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1541,7 +1541,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>双肺支气管血管束增粗、模糊,双肺透过度不均,双肺可见多发囊状透亮影。左肺门可见不规则软组织密度影,边缘呈分叶状,最大截面约为4.65CM×4.21CM,平扫CT值约为21HU,增强扫描呈轻度不均匀强化,三期CT值分别为55HU、77HU、72HU。双肺下叶小叶间隔增厚,部分呈蜂窝状改变,左肺下叶可见不规则高密度影。右肺上叶(49、46、43)、下叶(27)、左肺上叶(47、20)可见小结节影,大者径约为1.03CM。纵隔及左肺门可见多发稍大淋巴结影,大者径约为1.41CM。两胸腔无积液征象。主动脉走行区可见条形钙化影。所示甲状腺左叶可见圆形稍低密度影,边缘模糊,最大截面约为1.66CM×1.67CM,增强未见明显强化。1.左肺门中心型肺癌伴左肺下叶阻塞性肺炎可能;纵隔及左肺门多发淋巴结,转移不除外;2.肺气肿征象;双肺肺大泡;双肺下叶间质性改变;3.甲状腺左叶病变,请结合相关检查。</t>
+          <t>双肺支气管血管束增粗、模糊，双肺透过度不均，双肺可见多发囊状透亮影。左肺门可见不规则软组织密度影，边缘呈分叶状，最大截面约为4.65CM×4.21CM，平扫CT值约为21HU，增强扫描呈轻度不均匀强化，三期CT值分别为55HU、77HU、72HU。双肺下叶小叶间隔增厚，部分呈蜂窝状改变，左肺下叶可见不规则高密度影。右肺上叶(49、46、43)、下叶(27)、左肺上叶(47、20)可见小结节影，大者径约为1.03CM。纵隔及左肺门可见多发稍大淋巴结影，大者径约为1.41CM。两胸腔无积液征象。主动脉走行区可见条形钙化影。所示甲状腺左叶可见圆形稍低密度影，边缘模糊，最大截面约为1.66CM×1.67CM，增强未见明显强化。1.左肺门中心型肺癌伴左肺下叶阻塞性肺炎可能；纵隔及左肺门多发淋巴结，转移不除外；2.肺气肿征象；双肺肺大泡；双肺下叶间质性改变；3.甲状腺左叶病变，请结合相关检查。</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1559,7 +1559,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>双肺支气管血管束增强。右肺下叶见团片影,较大截面大小约2.4CM×4.3CM,CT值约30HU,边缘毛糙。右肺上叶(S18、23)、下叶(S40)及左肺上叶(S15、18)、下叶(S30)见结节影,较大者径约0.5CM。两肺门区未见异常。纵隔见多发小淋巴结影,较大者短径约1.0CM。两胸腔未见积液征象。主动脉、冠脉壁见条状致密影。胸3右侧横突见结节状致密影;右侧第4肋见片状致密影。双侧部分肋骨形态不整。胸8椎体见骨质破坏,内见斑片状致密影;部分胸椎内见金属固定物影。1.右肺下叶肺癌,较2016.9.19CT片减小;双肺转移瘤,较前明显减少、减小;纵膈多发小淋巴结,较前减小;2.胸3右侧横突、右侧第4肋致密灶,较前相仿;胸8椎体骨质破坏,较前相仿;双侧部分肋骨骨质欠整,请结合临床;部分胸椎术后改变。</t>
+          <t>双肺支气管血管束增强。右肺下叶见团片影，较大截面大小约2.4CM×4.3CM，CT值约30HU，边缘毛糙。右肺上叶(S18、23)、下叶(S40)及左肺上叶(S15、18)、下叶(S30)见结节影，较大者径约0.5CM。两肺门区未见异常。纵隔见多发小淋巴结影，较大者短径约1.0CM。两胸腔未见积液征象。主动脉、冠脉壁见条状致密影。胸3右侧横突见结节状致密影；右侧第4肋见片状致密影。双侧部分肋骨形态不整。胸8椎体见骨质破坏，内见斑片状致密影；部分胸椎内见金属固定物影。1.右肺下叶肺癌，较2016.9.19CT片减小；双肺转移瘤，较前明显减少、减小；纵膈多发小淋巴结，较前减小；2.胸3右侧横突、右侧第4肋致密灶，较前相仿；胸8椎体骨质破坏，较前相仿；双侧部分肋骨骨质欠整，请结合临床；部分胸椎术后改变。</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>右侧胸廓塌陷,右肺体积减小,纵隔右移,右肺下叶见团块状高密度影,形态不规则,边界不清楚,较大层面大小约9.0CM×6.0CM,CT值约19HU,右侧主支气管及各叶支气管受压变窄;右肺小叶间隔增厚,右侧胸膜弥漫性增厚,右侧胸腔可见包裹性积液;右侧腋窝、纵隔淋巴结增大,大者短径约1.5CM。左肺下叶外基底段(S32)可见粟粒影。心脏大血管未见异常,右侧第2、4、6、7、8肋骨、胸3椎体骨质密度不均匀增高,形态不规整。右第1肋欠整,右侧乳腺内见一结节影,径约1.0CM,边界清晰,其内见点状钙化。1.右下肺中心型肺癌,右肺间质性改变,考虑淋巴道转移,右侧胸膜转移,右侧胸腔包裹性积液;右侧腋窝及纵隔淋巴结转移;右侧多个肋骨、胸3椎体成骨性转移;较2014.03.19CT相仿;2.右乳钙化结节,较前相仿;3.左肺下叶外基底段粟粒灶,较前相仿;4.右第1肋欠整。</t>
+          <t>右侧胸廓塌陷，右肺体积减小，纵隔右移，右肺下叶见团块状高密度影，形态不规则，边界不清楚，较大层面大小约9.0CM×6.0CM，CT值约19HU，右侧主支气管及各叶支气管受压变窄；右肺小叶间隔增厚，右侧胸膜弥漫性增厚，右侧胸腔可见包裹性积液；右侧腋窝、纵隔淋巴结增大，大者短径约1.5CM。左肺下叶外基底段(S32)可见粟粒影。心脏大血管未见异常，右侧第2、4、6、7、8肋骨、胸3椎体骨质密度不均匀增高，形态不规整。右第1肋欠整，右侧乳腺内见一结节影，径约1.0CM，边界清晰，其内见点状钙化。1.右下肺中心型肺癌，右肺间质性改变，考虑淋巴道转移，右侧胸膜转移，右侧胸腔包裹性积液；右侧腋窝及纵隔淋巴结转移；右侧多个肋骨、胸3椎体成骨性转移；较2014.03.19CT相仿；2.右乳钙化结节，较前相仿；3.左肺下叶外基底段粟粒灶，较前相仿；4.右第1肋欠整。</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1603,7 +1603,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1.左侧乳腺癌伴左侧腋窝淋巴结转移,较2014-11-06片好转2.肝脏重度脂肪变性3.心包旁囊性密度灶,考虑为心包囊肿双乳腺体丰富,左乳外侧象限见片状及结节状软组织密度影,相互融合呈肿块状,边缘模糊,病变大小不易测量,估计长径约1.4CM;增强扫描轻度强化,其强化程度较化疗前显著降低。左侧乳头未见明显内陷。右乳未见明确异常密度灶。左侧腋窝原增大淋巴结显著缩小,均不足1.0CM。右侧腋窝淋巴结内见脂肪密度的淋巴结门,考虑为正常淋巴结。双侧内乳区、双肺门及纵隔内未见显著增大淋巴结。另于纵隔内心包右旁见大小约2.9CM×2.1CM囊性密度灶,边缘能清晰,增强后未见强化。双肺野较清晰,未见明确异常密度灶。双侧胸腔内未见液性密度影。扫描野肝实质密度显著减低。</t>
+          <t>1.左侧乳腺癌伴左侧腋窝淋巴结转移，较2014-11-06片好转2.肝脏重度脂肪变性3.心包旁囊性密度灶，考虑为心包囊肿双乳腺体丰富，左乳外侧象限见片状及结节状软组织密度影，相互融合呈肿块状，边缘模糊，病变大小不易测量，估计长径约1.4CM；增强扫描轻度强化，其强化程度较化疗前显著降低。左侧乳头未见明显内陷。右乳未见明确异常密度灶。左侧腋窝原增大淋巴结显著缩小，均不足1.0CM。右侧腋窝淋巴结内见脂肪密度的淋巴结门，考虑为正常淋巴结。双侧内乳区、双肺门及纵隔内未见显著增大淋巴结。另于纵隔内心包右旁见大小约2.9CM×2.1CM囊性密度灶，边缘能清晰，增强后未见强化。双肺野较清晰，未见明确异常密度灶。双侧胸腔内未见液性密度影。扫描野肝实质密度显著减低。</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1625,7 +1625,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1.结合临床,左乳癌术后,术区小片状高密度影,建议观察;宫颈转移,骨转移,变化不著2.左肺下叶类结节灶,变化不著;左肺炎症,较前(2015-12-25)好转3.子宫肌瘤4.双侧附件略饱满5.双侧腋窝、左锁上、腹腔腹膜后、盆腔小淋巴结左乳外侧局部结构紊乱,局部可见小斑片状强化影,未见具体结节灶。左肺下叶见斑片影。左肺下叶胸膜下见一直径不足0.5CM小类结节灶。双侧腋窝及左锁上见短径不足1.0CM小淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。左侧肾上腺饱满,肝、胆、胰、脾、右侧肾上腺及双肾未见异常。腹腔及腹膜后、膈上见大者短径约0.5CM小淋巴结。宫颈体积稍大,密度不均,增强后强化不均。宫体体积不规则增大,见多发软组织结节灶,增强后呈高低不均强化。双侧附件饱满。膀胱充盈良好,壁未见增厚。盆腔内髂血管旁、骶前见短径不足0.5CM小淋巴结。多发椎体及胸骨示密度不均。左侧坐骨局限性骨质密度减低。</t>
+          <t>1.结合临床，左乳癌术后，术区小片状高密度影，建议观察；宫颈转移，骨转移，变化不著2.左肺下叶类结节灶，变化不著；左肺炎症，较前(2015-12-25)好转3.子宫肌瘤4.双侧附件略饱满5.双侧腋窝、左锁上、腹腔腹膜后、盆腔小淋巴结左乳外侧局部结构紊乱，局部可见小斑片状强化影，未见具体结节灶。左肺下叶见斑片影。左肺下叶胸膜下见一直径不足0.5CM小类结节灶。双侧腋窝及左锁上见短径不足1.0CM小淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。左侧肾上腺饱满，肝、胆、胰、脾、右侧肾上腺及双肾未见异常。腹腔及腹膜后、膈上见大者短径约0.5CM小淋巴结。宫颈体积稍大，密度不均，增强后强化不均。宫体体积不规则增大，见多发软组织结节灶，增强后呈高低不均强化。双侧附件饱满。膀胱充盈良好，壁未见增厚。盆腔内髂血管旁、骶前见短径不足0.5CM小淋巴结。多发椎体及胸骨示密度不均。左侧坐骨局限性骨质密度减低。</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1642,7 +1642,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>右肺下叶可见不规则稍低密度影,与右肺门分界不清,边缘毛糙,CT值约为34HU,其内密度不均,长径约为2.0CM×1.5CM,邻近肺组织可见模糊影,右肺下叶内基底段支气管截断,右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影,边缘毛糙,大者径约为0.6CM;纵隔内未见增大淋巴结影。右侧胸腔、心包内见少许液性密度影。甲状腺明显肿大。1.右肺下叶肺癌,并双肺、右胸膜多发转移,较2015-10-8CT片未见明显变化;2.右侧胸腔积液,心包积液,较前相仿;2.甲状腺饱满。</t>
+          <t>右肺下叶可见不规则稍低密度影，与右肺门分界不清，边缘毛糙，CT值约为34HU，其内密度不均，长径约为2.0CM×1.5CM，邻近肺组织可见模糊影，右肺下叶内基底段支气管截断，右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影，边缘毛糙，大者径约为0.6CM；纵隔内未见增大淋巴结影。右侧胸腔、心包内见少许液性密度影。甲状腺明显肿大。1.右肺下叶肺癌，并双肺、右胸膜多发转移，较2015-10-8CT片未见明显变化；2.右侧胸腔积液，心包积液，较前相仿；2.甲状腺饱满。</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1664,7 +1664,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1.右侧乳腺癌,右侧腋窝淋巴结转移;2.左肺上叶索条灶。右侧乳腺外侧象限内可见一软组织密度影,大小为1.92CM×1.85CM,CT值为42HU,增强后两期CT值为79HU、72HU。右侧腋窝内可见一肿大淋巴结影,大小为4.27CM×3.1CM。左肺上叶舌段可见索条灶。两肺纹理清晰。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。</t>
+          <t>1.右侧乳腺癌，右侧腋窝淋巴结转移；2.左肺上叶索条灶。右侧乳腺外侧象限内可见一软组织密度影，大小为1.92CM×1.85CM，CT值为42HU，增强后两期CT值为79HU、72HU。右侧腋窝内可见一肿大淋巴结影，大小为4.27CM×3.1CM。左肺上叶舌段可见索条灶。两肺纹理清晰。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1686,7 +1686,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>左肺下叶背段可见团块影,较大截面大小约4.38CM×3.30CM,平扫CT值约为36HU,边界尚清,浅分叶状,周围可见斑片状稍高密度影。双肺另见弥漫多发大小不等结节影。两肺门区未见异常。纵隔内未见淋巴结增大。右侧胸腔内可见弧形积液影。心脏大血管未见异常。左侧肩胛骨、部分肋骨、胸椎及附件形态欠规整,可见骨质破坏区及软组织肿块。1.左肺下叶背段周围型肺癌伴双肺多发转移瘤,较前2016-01-21CT相仿,左肺部分转移瘤较前减小;右侧胸水;2.左侧肩胛骨、部分肋骨、胸椎及附件形态欠规整,转移不除外,胸椎改变较前增多,请结合临床。</t>
+          <t>左肺下叶背段可见团块影，较大截面大小约4.38CM×3.30CM，平扫CT值约为36HU，边界尚清，浅分叶状，周围可见斑片状稍高密度影。双肺另见弥漫多发大小不等结节影。两肺门区未见异常。纵隔内未见淋巴结增大。右侧胸腔内可见弧形积液影。心脏大血管未见异常。左侧肩胛骨、部分肋骨、胸椎及附件形态欠规整，可见骨质破坏区及软组织肿块。1.左肺下叶背段周围型肺癌伴双肺多发转移瘤，较前2016-01-21CT相仿，左肺部分转移瘤较前减小；右侧胸水；2.左侧肩胛骨、部分肋骨、胸椎及附件形态欠规整，转移不除外，胸椎改变较前增多，请结合临床。</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1708,7 +1708,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1.右下肺中心型肺癌,右肺间质性改变,考虑淋巴道转移,右侧胸膜转移,右侧胸腔包裹性积液;右侧腋窝及纵隔淋巴结转移;右侧多个肋骨、胸3椎体成骨性转移;较2014.03.19CT相仿;2.右乳钙化结节,较前相仿;3.左肺下叶外基底段粟粒灶,较前相仿;4.右第1肋欠整。右侧胸廓塌陷,右肺体积减小,纵隔右移,右肺下叶见团块状高密度影,形态不规则,边界不清楚,较大层面大小约9.0CM×6.0CM,CT值约19HU,右侧主支气管及各叶支气管受压变窄;右肺小叶间隔增厚,右侧胸膜弥漫性增厚,右侧胸腔可见包裹性积液;右侧腋窝、纵隔淋巴结增大,大者短径约1.5CM。左肺下叶外基底段(S32)可见粟粒影。心脏大血管未见异常,右侧第2、4、6、7、8肋骨、胸3椎体骨质密度不均匀增高,形态不规整。右第1肋欠整,右侧乳腺内见一结节影,径约1.0CM,边界清晰,其内见点状钙化。</t>
+          <t>1.右下肺中心型肺癌，右肺间质性改变，考虑淋巴道转移，右侧胸膜转移，右侧胸腔包裹性积液；右侧腋窝及纵隔淋巴结转移；右侧多个肋骨、胸3椎体成骨性转移；较2014.03.19CT相仿；2.右乳钙化结节，较前相仿；3.左肺下叶外基底段粟粒灶，较前相仿；4.右第1肋欠整。右侧胸廓塌陷，右肺体积减小，纵隔右移，右肺下叶见团块状高密度影，形态不规则，边界不清楚，较大层面大小约9.0CM×6.0CM，CT值约19HU，右侧主支气管及各叶支气管受压变窄；右肺小叶间隔增厚，右侧胸膜弥漫性增厚，右侧胸腔可见包裹性积液；右侧腋窝、纵隔淋巴结增大，大者短径约1.5CM。左肺下叶外基底段(S32)可见粟粒影。心脏大血管未见异常，右侧第2、4、6、7、8肋骨、胸3椎体骨质密度不均匀增高，形态不规整。右第1肋欠整，右侧乳腺内见一结节影，径约1.0CM，边界清晰，其内见点状钙化。</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1730,7 +1730,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1.右肺下叶肺癌,并纵膈淋巴结转移,较前2016-07-18CT进展;2.双肺多发转移瘤,部分病灶较前新发,部分增大;3.第3胸椎右侧横突高密度灶,较前相仿;右侧第4肋骨致密灶;第8胸椎骨质破坏,较前相仿;双侧第5、7肋骨骨质欠整,部分较前新发,请结合临床;部分胸椎术后改变。右肺下叶基底段可见团片影,较大截面大小约4.39CM×4.28CM,CT值约28HU,右肺下叶部分支气管远端截断,呈分叶状,边缘可见毛刺,邻近胸膜凹陷。双肺可见多发结节影;两肺门区未见异常。纵隔见增大淋巴结影,大者短径约2.1CM。两胸腔无积液征象。主动脉、冠状动脉管壁钙化。第3胸椎右侧横突内可见类圆形致密影。右侧第4肋骨可见致密影。双侧第5、7肋骨可见骨质形态不整,骨皮质不连续。第8胸椎骨质不规整,其内可见斑片状高密度影。部分胸椎内见金属固定物影。</t>
+          <t>1.右肺下叶肺癌，并纵膈淋巴结转移，较前2016-07-18CT进展；2.双肺多发转移瘤，部分病灶较前新发，部分增大；3.第3胸椎右侧横突高密度灶，较前相仿；右侧第4肋骨致密灶；第8胸椎骨质破坏，较前相仿；双侧第5、7肋骨骨质欠整，部分较前新发，请结合临床；部分胸椎术后改变。右肺下叶基底段可见团片影，较大截面大小约4.39CM×4.28CM，CT值约28HU，右肺下叶部分支气管远端截断，呈分叶状，边缘可见毛刺，邻近胸膜凹陷。双肺可见多发结节影；两肺门区未见异常。纵隔见增大淋巴结影，大者短径约2.1CM。两胸腔无积液征象。主动脉、冠状动脉管壁钙化。第3胸椎右侧横突内可见类圆形致密影。右侧第4肋骨可见致密影。双侧第5、7肋骨可见骨质形态不整，骨皮质不连续。第8胸椎骨质不规整，其内可见斑片状高密度影。部分胸椎内见金属固定物影。</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1752,7 +1752,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>右肺上叶尖段见4.5CM×3.5CM大小的肿块,边界尚清,平扫CT值为27HU,增强扫描肿块呈环形强化,三期CT值约38HU、60HU、42HU,内见不强化的低密度区,右肺上叶支气管壁增厚毛糙。双肺支气管血管束稍粗。双肺内见多个囊状低密度影。双肺门区未见异常。纵隔内见增大的淋巴结,较大者短径约3.2CM。主动脉、冠脉钙化影。1.右肺上叶尖段肿块,考虑肺癌,纵膈淋巴结转移可能大,右肺上叶支气管壁局部增厚毛糙,请结合临床;2.支气管炎、肺气肿。</t>
+          <t>右肺上叶尖段见4.5CM×3.5CM大小的肿块，边界尚清，平扫CT值为27HU，增强扫描肿块呈环形强化，三期CT值约38HU、60HU、42HU，内见不强化的低密度区，右肺上叶支气管壁增厚毛糙。双肺支气管血管束稍粗。双肺内见多个囊状低密度影。双肺门区未见异常。纵隔内见增大的淋巴结，较大者短径约3.2CM。主动脉、冠脉钙化影。1.右肺上叶尖段肿块，考虑肺癌，纵膈淋巴结转移可能大，右肺上叶支气管壁局部增厚毛糙，请结合临床；2.支气管炎、肺气肿。</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1774,7 +1774,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1.右上中央型肺癌伴阻塞性炎症,右肺上叶孤立小结节不除外转移,纵隔淋巴结转移及右肺动脉受累不除外;2.左下胸膜多发结节样增厚;3.两肺气肿改变。右上肺门见沿右上叶支气管及后段支气管6.5CM×4.5CM×6.0CM、深入纵隔的软组织密度团块影,致相应支气管轻度狭窄,团块形态不规则,边缘不光整,见多数长短不一细密毛刺,内部密度不均,见中心坏死更低密度,CT值48BHU-12HU,增强后呈中度延迟强化,动脉期CT值63HU-12HU,包绕右肺门血管,致血管局限略显变窄,静脉期CT值73HU-12HU。团块远端,即右肺上叶尖段、后段见模糊片影,团块外侧近斜裂处并见一小结节,直径0.5CM。两肺透过度不均匀增高,胸膜下为主见多发肺大泡影。两胸腔无积液征象,左下胸膜见多处局限增厚,成波浪状。所示骨质未见明显转移破坏改变。</t>
+          <t>1.右上中央型肺癌伴阻塞性炎症，右肺上叶孤立小结节不除外转移，纵隔淋巴结转移及右肺动脉受累不除外；2.左下胸膜多发结节样增厚；3.两肺气肿改变。右上肺门见沿右上叶支气管及后段支气管6.5CM×4.5CM×6.0CM、深入纵隔的软组织密度团块影，致相应支气管轻度狭窄，团块形态不规则，边缘不光整，见多数长短不一细密毛刺，内部密度不均，见中心坏死更低密度，CT值48BHU-12HU，增强后呈中度延迟强化，动脉期CT值63HU-12HU，包绕右肺门血管，致血管局限略显变窄，静脉期CT值73HU-12HU。团块远端，即右肺上叶尖段、后段见模糊片影，团块外侧近斜裂处并见一小结节，直径0.5CM。两肺透过度不均匀增高，胸膜下为主见多发肺大泡影。两胸腔无积液征象，左下胸膜见多处局限增厚，成波浪状。所示骨质未见明显转移破坏改变。</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1791,7 +1791,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>食管下段壁厚,局部呈肿块影,最厚处约2.47CM,平扫CT值约39HU,增强扫描三期CT值约81、91、66HU,可见不均匀明显强化,贲门壁增厚,其旁及胃贲门旁、双侧腋窝可见增大淋巴结影,较大者径约1.1CM×.CM双肺上叶可见小囊状透亮影。右肺上叶(26)、左斜裂(36)可见粟粒影。两肺门区未见异常。气管右后方可见囊状气体密度影。两胸腔无积液征象。所示左侧头臂静脉可见极低密度影。主动脉及冠状动脉可见致密影。右侧第9肋可见片状高密度影。1.食管癌征象;纵隔、胃贲门旁、双侧腋窝淋巴结增大,考虑转移;请结合临床;2.肺气肿;气管憩室;3.右肺上叶、左斜裂粟粒灶,较2011.12.20CT片相仿;4.右侧第9肋高密度灶,较前相仿;5.左侧头臂静脉极低密度灶,请结合临床。</t>
+          <t>食管下段壁厚，局部呈肿块影，最厚处约2.47CM，平扫CT值约39HU，增强扫描三期CT值约81、91、66HU，可见不均匀明显强化，贲门壁增厚，其旁及胃贲门旁、双侧腋窝可见增大淋巴结影，较大者径约1.1CM×.CM双肺上叶可见小囊状透亮影。右肺上叶(26)、左斜裂(36)可见粟粒影。两肺门区未见异常。气管右后方可见囊状气体密度影。两胸腔无积液征象。所示左侧头臂静脉可见极低密度影。主动脉及冠状动脉可见致密影。右侧第9肋可见片状高密度影。1.食管癌征象；纵隔、胃贲门旁、双侧腋窝淋巴结增大，考虑转移；请结合临床；2.肺气肿；气管憩室；3.右肺上叶、左斜裂粟粒灶，较2011.12.20CT片相仿；4.右侧第9肋高密度灶，较前相仿；5.左侧头臂静脉极低密度灶，请结合临床。</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1813,7 +1813,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1.右肺上叶结节影,考虑为周围型肺癌可能性大,较前片2011.8.19未见明显变化;2.右肺中叶、左肺上叶及双肺下叶多发小结节影,较前相仿;双侧肱骨头、胸骨、部分椎体及肋骨密度不均,考虑转移;较前进展;3.双肺下叶炎性改变,较前进展;4.双肺上叶陈旧病灶,支气管炎;肺气肿;多发肺大泡;双侧胸膜稍厚;5.肝脏多发低密度影,请结合腹部检查。右肺上叶可见一类圆形结节影,呈浅分叶,密度尚均匀,CT值约为34HU,病灶边缘不光滑,可见细短毛刺及胸膜牵拉;病灶大小约为2.0CM×1.5CM。右肺中叶、左肺上叶及双肺下叶可见多发大小不等小结节影,大者位于右肺下叶,大小约为0.8CM×1.0CM,边缘可见毛刺。双肺上叶可见斑块状、条状高密度影及囊性透光影;双肺下叶可见斑片状淡片影。所示气管支气管未见异常扩张;双肺门区未见异常。纵隔内可见多个小淋巴结影,以隆突下最大,短径约为0.8CM;双侧胸腔未见积液征象;主动脉管壁可见多发斑点状钙化影。部分椎体及肋骨密度欠均,可见片状密度增高影。所示肝脏内可见多发低密度影。</t>
+          <t>1.右肺上叶结节影，考虑为周围型肺癌可能性大，较前片2011.8.19未见明显变化；2.右肺中叶、左肺上叶及双肺下叶多发小结节影，较前相仿；双侧肱骨头、胸骨、部分椎体及肋骨密度不均，考虑转移；较前进展；3.双肺下叶炎性改变，较前进展；4.双肺上叶陈旧病灶，支气管炎；肺气肿；多发肺大泡；双侧胸膜稍厚；5.肝脏多发低密度影，请结合腹部检查。右肺上叶可见一类圆形结节影，呈浅分叶，密度尚均匀，CT值约为34HU，病灶边缘不光滑，可见细短毛刺及胸膜牵拉；病灶大小约为2.0CM×1.5CM。右肺中叶、左肺上叶及双肺下叶可见多发大小不等小结节影，大者位于右肺下叶，大小约为0.8CM×1.0CM，边缘可见毛刺。双肺上叶可见斑块状、条状高密度影及囊性透光影；双肺下叶可见斑片状淡片影。所示气管支气管未见异常扩张；双肺门区未见异常。纵隔内可见多个小淋巴结影，以隆突下最大，短径约为0.8CM；双侧胸腔未见积液征象；主动脉管壁可见多发斑点状钙化影。部分椎体及肋骨密度欠均，可见片状密度增高影。所示肝脏内可见多发低密度影。</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1835,7 +1835,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>右肺门区可见片状软组织密度影,范围约为4.89CM×3.35CM,CT值约为36HU,边界不清;右肺中叶、右肺下叶部分支气管狭窄,远端闭塞;两肺内可见大片状高密度影,边缘模糊,右肺为著;双侧胸腔内可见弧形液性密度影;纵隔内可见肿大淋巴结影,径约2.67CM;主动脉、双侧冠状动脉走行区内可见条状高密度钙化影。1.右肺门肿块,考虑中央型肺癌并阻塞性炎症;2.两肺间质性炎症;3.双侧胸腔积液;4.纵隔淋巴结肿大,转移不除外。</t>
+          <t>右肺门区可见片状软组织密度影，范围约为4.89CM×3.35CM，CT值约为36HU，边界不清；右肺中叶、右肺下叶部分支气管狭窄，远端闭塞；两肺内可见大片状高密度影，边缘模糊，右肺为著；双侧胸腔内可见弧形液性密度影；纵隔内可见肿大淋巴结影，径约2.67CM；主动脉、双侧冠状动脉走行区内可见条状高密度钙化影。1.右肺门肿块，考虑中央型肺癌并阻塞性炎症；2.两肺间质性炎症；3.双侧胸腔积液；4.纵隔淋巴结肿大，转移不除外。</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1.左侧胸膜恶性肿瘤,对比2012.06.25前片病变范围减小;双肺、胸3椎体及纵隔淋巴结转移,较前相仿;2.右肺上叶肺大泡。左肺肋胸膜、膈胸膜、斜裂胸膜广泛明显增厚,最厚约1.5CM,CT值约30HU。两肺纹理增强,双肺野内见多发大小不等密度增高影,部分呈磨玻璃密度改变,大者约1.8CM×1.2CM;右肺上叶尖段见囊状透过度增高区。所示气管支气管影正常。纵隔内见多发小淋巴结影,大者短径0.8CM。两胸腔无积液征象。主动脉管壁见钙化影。胸3椎体见结节样致密影。</t>
+          <t>1.左侧胸膜恶性肿瘤，对比2012.06.25前片病变范围减小；双肺、胸3椎体及纵隔淋巴结转移，较前相仿；2.右肺上叶肺大泡。左肺肋胸膜、膈胸膜、斜裂胸膜广泛明显增厚，最厚约1.5CM，CT值约30HU。两肺纹理增强，双肺野内见多发大小不等密度增高影，部分呈磨玻璃密度改变，大者约1.8CM×1.2CM；右肺上叶尖段见囊状透过度增高区。所示气管支气管影正常。纵隔内见多发小淋巴结影，大者短径0.8CM。两胸腔无积液征象。主动脉管壁见钙化影。胸3椎体见结节样致密影。</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1879,7 +1879,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1.右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移,较前(2014-11-19)相仿;2.右肺下叶磨玻璃结节,较前相仿;3.所示多发骨转移征象,较前部分较前进展,左侧第5肋病理性骨折。右肺下叶背段见类圆形肿块影,约2.15CM×1.9CM,边缘不规整,可见多发毛刺影,并见血管影进入,牵拉斜裂胸膜,CT值约30HU。右肺门区及纵隔内可见多发肿大淋巴结影,大者短径约2.5CM,双侧胸腔未见积液征象。心脏大血管未见异常。双侧多根肋骨、胸骨柄及胸骨体内可见高密度影,多个上位胸椎椎体及附件骨质破坏。</t>
+          <t>1.右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移，较前(2014-11-19)相仿；2.右肺下叶磨玻璃结节，较前相仿；3.所示多发骨转移征象，较前部分较前进展，左侧第5肋病理性骨折。右肺下叶背段见类圆形肿块影，约2.15CM×1.9CM，边缘不规整，可见多发毛刺影，并见血管影进入，牵拉斜裂胸膜，CT值约30HU。右肺门区及纵隔内可见多发肿大淋巴结影，大者短径约2.5CM，双侧胸腔未见积液征象。心脏大血管未见异常。双侧多根肋骨、胸骨柄及胸骨体内可见高密度影，多个上位胸椎椎体及附件骨质破坏。</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1901,7 +1901,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1.右乳癌术后改变,多发肝转移瘤,较前(2015-11-10)进展;多发骨转移瘤,变化不著2.左乳内多发结节灶,原发或转移不能除外,较前进展;纵隔淋巴结肿大3.双肺炎症及纤维灶;双侧胸腔及心包腔内积液,较前增多4.左肺类结节灶,建议观察5.胆囊炎6.右肾小囊肿右乳术后缺如,部分胸肌存在,术区未见明显增厚及异常强化;右侧腋窝术后,结构紊乱。左乳内可见散在多发强化结节灶,边界较清晰,大者直径约1.5CM,增强后呈显著强化。左侧腋窝内见大者短径约0.5CM肿大淋巴结。双肺内可见散在片絮状及条索状密度增高影;左肺内可见散在类结节灶,边界较模糊。双侧各叶、段支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸腔内及心包腔内可见液性密度影。肝脏实质内可见散在多发类圆形低密度灶,边缘较模糊,大者直径约1.3CM,轻度强化。胆囊壁增厚并强化。胰、脾、左肾及双侧肾上腺未见异常;右肾实质内可见散在小囊性密度灶,边界清晰,未见强化。腹腔及腹膜后未见明显肿大淋巴结。骨窗示:胸骨、双侧锁骨头、双侧肱骨头、双侧肩胛骨、多发肋骨、多发颈胸腰椎椎体、双侧髂骨示成骨性骨质破坏。</t>
+          <t>1.右乳癌术后改变，多发肝转移瘤，较前(2015-11-10)进展；多发骨转移瘤，变化不著2.左乳内多发结节灶，原发或转移不能除外，较前进展；纵隔淋巴结肿大3.双肺炎症及纤维灶；双侧胸腔及心包腔内积液，较前增多4.左肺类结节灶，建议观察5.胆囊炎6.右肾小囊肿右乳术后缺如，部分胸肌存在，术区未见明显增厚及异常强化；右侧腋窝术后，结构紊乱。左乳内可见散在多发强化结节灶，边界较清晰，大者直径约1.5CM，增强后呈显著强化。左侧腋窝内见大者短径约0.5CM肿大淋巴结。双肺内可见散在片絮状及条索状密度增高影；左肺内可见散在类结节灶，边界较模糊。双侧各叶、段支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸腔内及心包腔内可见液性密度影。肝脏实质内可见散在多发类圆形低密度灶，边缘较模糊，大者直径约1.3CM，轻度强化。胆囊壁增厚并强化。胰、脾、左肾及双侧肾上腺未见异常；右肾实质内可见散在小囊性密度灶，边界清晰，未见强化。腹腔及腹膜后未见明显肿大淋巴结。骨窗示：胸骨、双侧锁骨头、双侧肱骨头、双侧肩胛骨、多发肋骨、多发颈胸腰椎椎体、双侧髂骨示成骨性骨质破坏。</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1918,7 +1918,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>较2012-11-20片比:1.左肺上叶周围型肺癌,较前略缩小;双肺多发转移瘤,较前变化不大;2.纵隔及主动脉弓旁淋巴结稍大;3.胸5、11椎体内高密度影,下位一胸椎密度不均,建议详查除外转移;4.肝脏多发转移瘤,请结合腹部CT。左肺上叶尖后段见一类圆形团块影,分叶,边缘短毛刺,大小约3.70CM×2.87CM,CT值约30HU,邻近胸膜牵拉;双肺见多发大小不一棉花团样结节影;纵隔内及主动脉弓旁见多发稍大的淋巴结,大者短径约0.89CM。所示胸5椎内见结节状致密影,胸11椎体内见片状高密度影。所扫肝内见多发类圆形低密度影。</t>
+          <t>较2012-11-20片比：1.左肺上叶周围型肺癌，较前略缩小；双肺多发转移瘤，较前变化不大；2.纵隔及主动脉弓旁淋巴结稍大；3.胸5、11椎体内高密度影，下位一胸椎密度不均，建议详查除外转移；4.肝脏多发转移瘤，请结合腹部CT。左肺上叶尖后段见一类圆形团块影，分叶，边缘短毛刺，大小约3.70CM×2.87CM，CT值约30HU，邻近胸膜牵拉；双肺见多发大小不一棉花团样结节影；纵隔内及主动脉弓旁见多发稍大的淋巴结，大者短径约0.89CM。所示胸5椎内见结节状致密影，胸11椎体内见片状高密度影。所扫肝内见多发类圆形低密度影。</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1940,7 +1940,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1.右肺上叶团块,考虑中心型肺癌伴肺不张,右肺门、纵隔淋巴结转移,上腔静脉受压;2.双肺多发粟粒灶,随诊;3.右肾上腺结节,随诊;肝囊肿。右肺上叶支气管管腔变窄,支气管截断,右肺上叶见不张,平扫CT值约35HU,增强后三期CT值约78-33HU、92-38HU、71-36HU,增强后呈不均匀强化,其内见片状低密度影。右肺门、纵隔见多发增大淋巴结,大者短径约3.9CM,边界不清,部分融合成团,平扫CT值约46HU,增强后三期CT值约65HU、79HU、76HU。右肺中叶(S15)、下叶(S26)、左肺尖(S6)可见多发粟粒灶。双侧未见胸腔积液征象。心脏大血管未见明显异常,上腔静脉受压。所见右肾上腺内支见结节影,动脉期强化明显,径约0.6CM。肝内见囊状低密度影,大小约4.8CM×2.7CM,CT值约6HU。</t>
+          <t>1.右肺上叶团块，考虑中心型肺癌伴肺不张，右肺门、纵隔淋巴结转移，上腔静脉受压；2.双肺多发粟粒灶，随诊；3.右肾上腺结节，随诊；肝囊肿。右肺上叶支气管管腔变窄，支气管截断，右肺上叶见不张，平扫CT值约35HU，增强后三期CT值约78-33HU、92-38HU、71-36HU，增强后呈不均匀强化，其内见片状低密度影。右肺门、纵隔见多发增大淋巴结，大者短径约3.9CM，边界不清，部分融合成团，平扫CT值约46HU，增强后三期CT值约65HU、79HU、76HU。右肺中叶(S15)、下叶(S26)、左肺尖(S6)可见多发粟粒灶。双侧未见胸腔积液征象。心脏大血管未见明显异常，上腔静脉受压。所见右肾上腺内支见结节影，动脉期强化明显，径约0.6CM。肝内见囊状低密度影，大小约4.8CM×2.7CM，CT值约6HU。</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1957,7 +1957,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1、右肺中心型肺癌,空腔形成,右肺门、纵隔多发淋巴结转移;2、右侧胸膜增厚;3、左肾上腺外支转移征象,腹膜后小淋巴结,请结合相关部位检查。右主支气管管壁增厚,右肺上叶可见不规则团块影,内见空腔形成,壁厚约1.4CM,CT值约34HU,内壁光整,外壁不规则;周围多发斑片、索条影;增强扫描可见轻中度不均匀强化,三期CT值约59HU、60HU、69HU。右肺门、纵隔内多发肿大淋巴结,可见融合,大者短径约1.4CM,增强扫描可见环形强化。左肺野未见异常密度影。两肺门区未见异常。支气管血管束正常,气管支气管通畅。右侧胸膜增厚,两胸腔无积液征象。心脏大血管未见异常。左肾上腺外支增粗,腹膜后见多个小淋巴结影,短径约4MM。</t>
+          <t>1、右肺中心型肺癌，空腔形成，右肺门、纵隔多发淋巴结转移；2、右侧胸膜增厚；3、左肾上腺外支转移征象，腹膜后小淋巴结，请结合相关部位检查。右主支气管管壁增厚，右肺上叶可见不规则团块影，内见空腔形成，壁厚约1.4CM，CT值约34HU，内壁光整，外壁不规则；周围多发斑片、索条影；增强扫描可见轻中度不均匀强化，三期CT值约59HU、60HU、69HU。右肺门、纵隔内多发肿大淋巴结，可见融合，大者短径约1.4CM，增强扫描可见环形强化。左肺野未见异常密度影。两肺门区未见异常。支气管血管束正常，气管支气管通畅。右侧胸膜增厚，两胸腔无积液征象。心脏大血管未见异常。左肾上腺外支增粗，腹膜后见多个小淋巴结影，短径约4MM。</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1974,7 +1974,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1.右肺中叶周围型肺癌,与外院2012.09.12化疗前CT片相比未见明显变化;病灶周围片状高密度影,考虑阻塞性肺炎;2.双肺多发转移瘤,较前未见明显变化;3.右侧肺门增大,纵隔淋巴结增大,与外院2012.09.12片相比未见明显进展。双肺纹理清晰。右肺中叶可见团块影,边界较清晰,大小约为4.23CM×3.89CM,周围可见片状稍高密度影,双肺可见多发结节影,较大者径约0.48CM;右侧肺门增大,所示气管支气管影正常。纵隔内见增大淋巴结影,径约1.03CM。两胸腔无积液征象。心脏大血管未见异常。</t>
+          <t>1.右肺中叶周围型肺癌，与外院2012.09.12化疗前CT片相比未见明显变化；病灶周围片状高密度影，考虑阻塞性肺炎；2.双肺多发转移瘤，较前未见明显变化；3.右侧肺门增大，纵隔淋巴结增大，与外院2012.09.12片相比未见明显进展。双肺纹理清晰。右肺中叶可见团块影，边界较清晰，大小约为4.23CM×3.89CM，周围可见片状稍高密度影，双肺可见多发结节影，较大者径约0.48CM；右侧肺门增大，所示气管支气管影正常。纵隔内见增大淋巴结影，径约1.03CM。两胸腔无积液征象。心脏大血管未见异常。</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1996,7 +1996,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1、右肺恶性肿瘤,右肺多发转移瘤,纵隔多发淋巴结转移,右侧胸膜转移,较前(2016-5-10CT)进展,请结合临床;2、左肺小结节,较前相仿,随诊;3、右侧胸腔积液征象,较前减少,请结合临床。右肺下叶见团块影,长径约为4.1CM×2.5CM,CT值约为45HU,增强后CT值约为52HU、65HU及73HU;右肺另见多发大小不等界清结节影。左肺小结节(31、48),纵隔内见数个增大的淋巴结,大者短径约为2.1CM。心脏大血管形态自然。右侧胸腔内见弧形积液征象,增强后右胸膜见多个结节状强化。</t>
+          <t>1、右肺恶性肿瘤，右肺多发转移瘤，纵隔多发淋巴结转移，右侧胸膜转移，较前(2016-5-10CT)进展，请结合临床；2、左肺小结节，较前相仿，随诊；3、右侧胸腔积液征象，较前减少，请结合临床。右肺下叶见团块影，长径约为4.1CM×2.5CM，CT值约为45HU，增强后CT值约为52HU、65HU及73HU；右肺另见多发大小不等界清结节影。左肺小结节(31、48)，纵隔内见数个增大的淋巴结，大者短径约为2.1CM。心脏大血管形态自然。右侧胸腔内见弧形积液征象，增强后右胸膜见多个结节状强化。</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2018,7 +2018,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>左乳术后,术区结构紊乱,肌肉,密度欠均质,术区未见异常强化灶。左侧腋窝结构紊乱。右乳未见异常。双侧内乳区、双侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰,未见结节及异常强化灶。肝脏密度减低;肝右后叶内见片状密度增高影,其强化方式与同层腹主动脉相似。胆囊充盈可,其内见点状致密影。胰、脾、右侧肾上腺及扫描范围内双肾未见异常。左侧肾上腺见软组织结节灶,短径约1.8CM,增强后轻度强化。骨窗示胸骨及T12胸椎示不规则骨质改变。1.结合临床,左乳癌术后;骨转移较前2015-1-15变化不著2.肝右后叶片状密度增高影,考虑动静脉瘘形成3.胆囊结石4.左侧肾上腺结节灶,较前略增大5.脂肪肝</t>
+          <t>左乳术后，术区结构紊乱，肌肉，密度欠均质，术区未见异常强化灶。左侧腋窝结构紊乱。右乳未见异常。双侧内乳区、双侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰，未见结节及异常强化灶。肝脏密度减低；肝右后叶内见片状密度增高影，其强化方式与同层腹主动脉相似。胆囊充盈可，其内见点状致密影。胰、脾、右侧肾上腺及扫描范围内双肾未见异常。左侧肾上腺见软组织结节灶，短径约1.8CM，增强后轻度强化。骨窗示胸骨及T12胸椎示不规则骨质改变。1.结合临床，左乳癌术后；骨转移较前2015-1-15变化不著2.肝右后叶片状密度增高影，考虑动静脉瘘形成3.胆囊结石4.左侧肾上腺结节灶，较前略增大5.脂肪肝</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2035,7 +2035,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1.结合病史,左乳癌并左侧腋窝淋巴结转移切检术后;术区结节灶,请结合临床2.脑少许缺血变性灶3.副鼻窦炎症左乳切检术后,术区腺体结构紊乱,皮肤不光整且增厚,局部可见一结节样等T1等T2异常信号影,压脂序列及DWI为中心低、边缘高信号,增强扫描可见较显著强化,时间信号曲线为流入型;病灶大小约6MM×8MM。右乳未见异常。左侧腋窝见数个淋巴结,大者短径约14MM。右侧腋窝及双侧内乳区未见肿大淋巴结。双侧额顶叶见少许点状异常信号影,表现为T2WI高或略高信号,压水序列为高信号,DWI为等信号,增强扫描无强化。余脑实质未见异常信号及占位征象。脑室系统及脑沟、裂、池未见异常,中线结构无移位。扫描野内右侧上颌窦及双侧筛窦粘膜增厚。</t>
+          <t>1.结合病史，左乳癌并左侧腋窝淋巴结转移切检术后；术区结节灶，请结合临床2.脑少许缺血变性灶3.副鼻窦炎症左乳切检术后，术区腺体结构紊乱，皮肤不光整且增厚，局部可见一结节样等T1等T2异常信号影，压脂序列及DWI为中心低、边缘高信号，增强扫描可见较显著强化，时间信号曲线为流入型；病灶大小约6MM×8MM。右乳未见异常。左侧腋窝见数个淋巴结，大者短径约14MM。右侧腋窝及双侧内乳区未见肿大淋巴结。双侧额顶叶见少许点状异常信号影，表现为T2WI高或略高信号，压水序列为高信号，DWI为等信号，增强扫描无强化。余脑实质未见异常信号及占位征象。脑室系统及脑沟、裂、池未见异常，中线结构无移位。扫描野内右侧上颌窦及双侧筛窦粘膜增厚。</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2052,7 +2052,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>左肺上叶见肿块影,大小约为7.08CM×2.34CM,CT值约53HU。右肺上叶见一径约0.5CM结节。两肺门区未见异常。所示气管支气管影正常。左主动脉弓旁、纵隔及右肺门淋巴结增大,大者短径约3.7CM。内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。1.左肺癌伴左主动脉弓旁、纵隔及右肺门淋巴结转移;2.右肺小结节,随诊;3.左侧肾上腺增粗,建议详查。</t>
+          <t>左肺上叶见肿块影，大小约为7.08CM×2.34CM，CT值约53HU。右肺上叶见一径约0.5CM结节。两肺门区未见异常。所示气管支气管影正常。左主动脉弓旁、纵隔及右肺门淋巴结增大，大者短径约3.7CM。内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。1.左肺癌伴左主动脉弓旁、纵隔及右肺门淋巴结转移；2.右肺小结节，随诊；3.左侧肾上腺增粗，建议详查。</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2074,7 +2074,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见肿大淋巴结,大者直径约0.5CM。左肺野示数个结节灶,大者直径约0.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺可见结节灶,直径约0.9CM。胆、胰、脾及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示溶骨性及混合性骨质破坏。1.结合临床,右乳癌术后,纵隔、双肺门淋巴结转移,左肺转移,较前2016-03-10变化不著;左肾上腺转移,较前变化不著;骨转移,较前变化不著2.双肺炎症,基本变化不著3.心包少量积液,变化不著4.肝囊肿</t>
+          <t>右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见肿大淋巴结，大者直径约0.5CM。左肺野示数个结节灶，大者直径约0.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺可见结节灶，直径约0.9CM。胆、胰、脾及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示溶骨性及混合性骨质破坏。1.结合临床，右乳癌术后，纵隔、双肺门淋巴结转移，左肺转移，较前2016-03-10变化不著；左肾上腺转移，较前变化不著；骨转移，较前变化不著2.双肺炎症，基本变化不著3.心包少量积液，变化不著4.肝囊肿</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2091,7 +2091,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1.结合临床,左乳癌术后改变;右肺结节灶,部分较前(2016-11-28)增大,部分变化不著,考虑转移;胸骨转移并周围软组织增厚,较前变化不著2.左肺下叶炎症,变化不著3.脂肪肝左乳术后缺如,胸肌尚存,术区未见明显增厚及强化。右乳未见明确异常,右侧腋窝内见小淋巴结,大者短径约0.5CM。右肺内见结节灶,大者直径约1.5CM,延支气管走形。左肺下叶胸膜下见斑片状密度增高影。纵隔内未见肿大淋巴结影。扫描野内肝脏实质密度均匀性减低,大小形态可,未见异常密度灶。胸骨骨质示成骨性及溶骨性骨质改变,周围软组织示增厚。</t>
+          <t>1.结合临床，左乳癌术后改变；右肺结节灶，部分较前(2016-11-28)增大，部分变化不著，考虑转移；胸骨转移并周围软组织增厚，较前变化不著2.左肺下叶炎症，变化不著3.脂肪肝左乳术后缺如，胸肌尚存，术区未见明显增厚及强化。右乳未见明确异常，右侧腋窝内见小淋巴结，大者短径约0.5CM。右肺内见结节灶，大者直径约1.5CM，延支气管走形。左肺下叶胸膜下见斑片状密度增高影。纵隔内未见肿大淋巴结影。扫描野内肝脏实质密度均匀性减低，大小形态可，未见异常密度灶。胸骨骨质示成骨性及溶骨性骨质改变，周围软组织示增厚。</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2108,7 +2108,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>对比2012-07-06CT:1.右乳腺癌术后复发,右内乳淋巴结、纵隔及两侧颈部多发淋巴结转移,双肺多发转移,胸骨转移,右侧胸壁软组织转移,较前片纵隔肿大淋巴结较前进展;2.双侧胸腔积液伴邻近肺组织膨胀不全,较前进展;3.左室增大;4.肝脏病变,建议详查。所示右侧乳腺缺如,右乳腺区见不规则肿块影,边界欠清,大小4.6CM×2.5CM,右内乳动脉区、纵隔及颈部见多发肿大淋巴结,部分融合。双肺内见多发大小不一类圆形高密度影,较大者位于右肺上叶背段,径约1.68CM。左室增大,大血管管壁未见钙化。双侧胸腔见弧形液性密度影,邻近肺组织膨胀不全。胸骨骨质欠规整。所示层面肝脏见多发低密度影。</t>
+          <t>对比2012-07-06CT：1.右乳腺癌术后复发，右内乳淋巴结、纵隔及两侧颈部多发淋巴结转移，双肺多发转移，胸骨转移，右侧胸壁软组织转移，较前片纵隔肿大淋巴结较前进展；2.双侧胸腔积液伴邻近肺组织膨胀不全，较前进展；3.左室增大；4.肝脏病变，建议详查。所示右侧乳腺缺如，右乳腺区见不规则肿块影，边界欠清，大小4.6CM×2.5CM，右内乳动脉区、纵隔及颈部见多发肿大淋巴结，部分融合。双肺内见多发大小不一类圆形高密度影，较大者位于右肺上叶背段，径约1.68CM。左室增大，大血管管壁未见钙化。双侧胸腔见弧形液性密度影，邻近肺组织膨胀不全。胸骨骨质欠规整。所示层面肝脏见多发低密度影。</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2125,7 +2125,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1.左下肺周围型肺癌,双肺多发转移,对比2011-12-21片,左下肺病灶缩小,余变化不大,请结合临床;2.纵隔内、左肺门及右侧腋窝处多发淋巴结肿大,对比前片未见明显改变;3.胸椎及左侧肋骨多发转移,对比前片,数量增多,胸骨、右侧锁骨转移,新发,请结合临床;4.甲状腺占位,腹部改变,请详查。双肺透过度欠均,左下肺可见一肿块影,边界不规则,最大层面3.6CM×3.2CM,CT值约35HU;左肺下叶基底段部分支气管略窄;双肺多发小结节影。两肺门区未见异常。纵隔内、左肺门及右侧腋窝处可见多发增大的淋巴结,大者短径约0.90CM。两胸腔无积液征象。心脏大血管未见异常。第3胸椎左侧横突、第4、5、7、8、10胸椎椎体内可见结节状高密度影,第11胸椎椎体骨质密度不均匀减低,左侧第4、5、7后肋骨质密度增高。甲状腺左叶见类圆形低密度影,边界欠清,大小约为0.9CM,CT值约为25HU。肝右叶多发低密度灶,双侧肾上腺区可见软组织密度影。</t>
+          <t>1.左下肺周围型肺癌，双肺多发转移，对比2011-12-21片，左下肺病灶缩小，余变化不大，请结合临床；2.纵隔内、左肺门及右侧腋窝处多发淋巴结肿大，对比前片未见明显改变；3.胸椎及左侧肋骨多发转移，对比前片，数量增多，胸骨、右侧锁骨转移，新发，请结合临床；4.甲状腺占位，腹部改变，请详查。双肺透过度欠均，左下肺可见一肿块影，边界不规则，最大层面3.6CM×3.2CM，CT值约35HU；左肺下叶基底段部分支气管略窄；双肺多发小结节影。两肺门区未见异常。纵隔内、左肺门及右侧腋窝处可见多发增大的淋巴结，大者短径约0.90CM。两胸腔无积液征象。心脏大血管未见异常。第3胸椎左侧横突、第4、5、7、8、10胸椎椎体内可见结节状高密度影，第11胸椎椎体骨质密度不均匀减低，左侧第4、5、7后肋骨质密度增高。甲状腺左叶见类圆形低密度影，边界欠清，大小约为0.9CM，CT值约为25HU。肝右叶多发低密度灶，双侧肾上腺区可见软组织密度影。</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2147,7 +2147,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1.右肺中叶周围型肺癌,纵隔多发淋巴结转移;较2016.6.71相仿;2.原双肺小结节本次显示不清,右肺中叶新见小结节,随诊;3.右肺下叶支气管轻度扩张,小叶间隔增厚,不除外淋巴道转移,请随诊;4.全心增大,请结合临床;5.右侧锁骨上淋巴结增大,胸11椎体右侧高密度影,考虑转移,建议ECT检查。右肺中叶见团块影,边界不清,径约2.5CM×3.4CM,CT值约39HU。右肺水平裂处(33)可见小结节,径约0.35CM。两肺门区未见异常。右肺下叶支气管轻度扩张,管壁稍增厚,多发小叶间隔增粗。纵隔内多发肿大淋巴结,短径约2.5CM,密度较均匀,CT值37HU。两胸腔无积液征象。主动脉壁及冠脉壁见弧形高密度影。全心大,心包稍增厚。右侧锁骨上窝见一淋巴结影,约为2.3CM×2.1CM,CT值32HU。胸11椎体右侧见结节状稍高密度影,直径0.9CM。腰1椎体见片状不规则高密度影。</t>
+          <t>1.右肺中叶周围型肺癌，纵隔多发淋巴结转移；较2016.6.71相仿；2.原双肺小结节本次显示不清，右肺中叶新见小结节，随诊；3.右肺下叶支气管轻度扩张，小叶间隔增厚，不除外淋巴道转移，请随诊；4.全心增大，请结合临床；5.右侧锁骨上淋巴结增大，胸11椎体右侧高密度影，考虑转移，建议ECT检查。右肺中叶见团块影，边界不清，径约2.5CM×3.4CM，CT值约39HU。右肺水平裂处(33)可见小结节，径约0.35CM。两肺门区未见异常。右肺下叶支气管轻度扩张，管壁稍增厚，多发小叶间隔增粗。纵隔内多发肿大淋巴结，短径约2.5CM，密度较均匀，CT值37HU。两胸腔无积液征象。主动脉壁及冠脉壁见弧形高密度影。全心大，心包稍增厚。右侧锁骨上窝见一淋巴结影，约为2.3CM×2.1CM，CT值32HU。胸11椎体右侧见结节状稍高密度影，直径0.9CM。腰1椎体见片状不规则高密度影。</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1.右肺下叶周围型肺癌,双侧多发肋骨及胸椎转移征象;2.支气管炎,肺气肿,双肺多发肺大泡;双肺间质性改变;双侧胸腔积液;左侧近膈肌处胸膜增厚钙化;3.左侧第4侧肋、10后肋肋骨折征象,病理性骨折待除外,请结合临床;4.所示左肾囊肿。双肺野透亮度不均,双肺可见多发透亮度增高影,双肺下叶可见斑片状密度增高影,小叶间隔增厚,双肺并见条索影。右肺下叶可见高密度团块影,较大截面大小约为2.6CM×2.1CM,平扫CT值约为46HU,周围可见毛刺影,可见血管集束征,两肺门区未见异常。所示肺内血管支气管束影增粗、增多,部分走行迂曲、紊乱。纵隔内可见多发淋巴结影,较大者短径约为1.2CM。两侧胸腔积液征象。左侧近膈肌处胸膜增厚钙化改变,部分大血管管壁及冠脉走行区可见致密影,心脏形态饱满。双侧部分肋骨及胸椎形态不规则,骨质破坏改变,局部可见软组织样异常密度影,左侧第4侧肋、10后肋局部骨皮质不连续,周围软组织稍肿胀,并见骨痂形成。所示左肾上极可见囊状液性低密度影。</t>
+          <t>1.右肺下叶周围型肺癌，双侧多发肋骨及胸椎转移征象；2.支气管炎，肺气肿，双肺多发肺大泡；双肺间质性改变；双侧胸腔积液；左侧近膈肌处胸膜增厚钙化；3.左侧第4侧肋、10后肋肋骨折征象，病理性骨折待除外，请结合临床；4.所示左肾囊肿。双肺野透亮度不均，双肺可见多发透亮度增高影，双肺下叶可见斑片状密度增高影，小叶间隔增厚，双肺并见条索影。右肺下叶可见高密度团块影，较大截面大小约为2.6CM×2.1CM，平扫CT值约为46HU，周围可见毛刺影，可见血管集束征，两肺门区未见异常。所示肺内血管支气管束影增粗、增多，部分走行迂曲、紊乱。纵隔内可见多发淋巴结影，较大者短径约为1.2CM。两侧胸腔积液征象。左侧近膈肌处胸膜增厚钙化改变，部分大血管管壁及冠脉走行区可见致密影，心脏形态饱满。双侧部分肋骨及胸椎形态不规则，骨质破坏改变，局部可见软组织样异常密度影，左侧第4侧肋、10后肋局部骨皮质不连续，周围软组织稍肿胀，并见骨痂形成。所示左肾上极可见囊状液性低密度影。</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2191,7 +2191,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>右肺下叶见一不规则软组织密度结节灶,边缘分叶,截面积约2.5CM×2.3CM;增强扫描呈不均匀强化。另于右肺下叶胸膜下见类结节灶。双肺透光度减低,右肺见少许片絮状密度增高影。右肺门、纵隔内2R、2L、4R见多发肿大淋巴结,大者位于右肺门,短径约1.8CM。肝内胆管局部示扩张,肝内见多发低密度灶,边界清,未见强化。双肾形态可,强化欠均匀,可见片状低密度影。胰腺周围见多发小囊性结节,边缘较清晰,未见强化。腹腔胃小弯侧见一短径约0.7CM类结节,边缘毛糙。右侧颞叶见一长径约0.8CM环形强化灶。脑室脑池未见扩张。中线结构居中。部分椎体内可见低密度影,其内可见颗粒状高密度影。1.结合临床,右肺下叶癌,较前2017-2-4增大;右肺门及纵隔淋巴结转移,部分进展,部分变化不著;考虑脑转移,请结合MR2.右肺下叶胸膜下类结节灶,不易比较,建议观察3.慢性肺炎,局部略加重4.肝内胆管轻度扩张,变化不著5.双肾密度减低并片状低密度影,变化不著6.部分椎体低密度影,考虑血管瘤。7.腹腔类结节,不除外淋巴结,建议观察;胰腺周围囊性结节,建议观察并结合临床</t>
+          <t>右肺下叶见一不规则软组织密度结节灶，边缘分叶，截面积约2.5CM×2.3CM；增强扫描呈不均匀强化。另于右肺下叶胸膜下见类结节灶。双肺透光度减低，右肺见少许片絮状密度增高影。右肺门、纵隔内2R、2L、4R见多发肿大淋巴结，大者位于右肺门，短径约1.8CM。肝内胆管局部示扩张，肝内见多发低密度灶，边界清，未见强化。双肾形态可，强化欠均匀，可见片状低密度影。胰腺周围见多发小囊性结节，边缘较清晰，未见强化。腹腔胃小弯侧见一短径约0.7CM类结节，边缘毛糙。右侧颞叶见一长径约0.8CM环形强化灶。脑室脑池未见扩张。中线结构居中。部分椎体内可见低密度影，其内可见颗粒状高密度影。1.结合临床，右肺下叶癌，较前2017-2-4增大；右肺门及纵隔淋巴结转移，部分进展，部分变化不著；考虑脑转移，请结合MR2.右肺下叶胸膜下类结节灶，不易比较，建议观察3.慢性肺炎，局部略加重4.肝内胆管轻度扩张，变化不著5.双肾密度减低并片状低密度影，变化不著6.部分椎体低密度影，考虑血管瘤。7.腹腔类结节，不除外淋巴结，建议观察；胰腺周围囊性结节，建议观察并结合临床</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2213,7 +2213,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1.右乳癌术后,右腋顶部、右颈根部、锁上、左腋窝、纵隔及右肺门淋巴结肿大,考虑转移;左肺门及双上颈部淋巴结肿大;双肺转移;肝转移2.肝脏小囊肿;右肾小囊肿3.双侧上颌窦炎症4.颅脑扫描未见明显异常5.腰椎退行性变右乳术后缺如,术区未见异常增厚及强化。左乳未见异常。右腋顶部、右颈根部、锁上、左腋窝、纵隔内血管前间隙、气管前腔静脉后、主肺动脉窗区及双肺门示多发肿大淋巴结,大者短径约1.2CM。双肺示多发结节及肿块,大者直径约3.0CM,可见强化。肝左右叶交界处示一低密度结节灶,截面约1.3CM×2.3CM,边缘模糊,可见边缘强化。余肝内可见小的囊性密度灶。胆胰脾肾上腺及左肾未见异常。右肾示小囊肿。腹腔腹膜后未见明显肿大淋巴结。双侧上颌窦内示液体密度影。甲状腺显示可,咽喉壁不厚。双颈上深示数个略大淋巴结,大者短径约0.7CM。脑实质密度均匀腰椎椎体前缘可见棘状突起。诸骨质未见明显破坏征象。</t>
+          <t>1.右乳癌术后，右腋顶部、右颈根部、锁上、左腋窝、纵隔及右肺门淋巴结肿大，考虑转移；左肺门及双上颈部淋巴结肿大；双肺转移；肝转移2.肝脏小囊肿；右肾小囊肿3.双侧上颌窦炎症4.颅脑扫描未见明显异常5.腰椎退行性变右乳术后缺如，术区未见异常增厚及强化。左乳未见异常。右腋顶部、右颈根部、锁上、左腋窝、纵隔内血管前间隙、气管前腔静脉后、主肺动脉窗区及双肺门示多发肿大淋巴结，大者短径约1.2CM。双肺示多发结节及肿块，大者直径约3.0CM，可见强化。肝左右叶交界处示一低密度结节灶，截面约1.3CM×2.3CM，边缘模糊，可见边缘强化。余肝内可见小的囊性密度灶。胆胰脾肾上腺及左肾未见异常。右肾示小囊肿。腹腔腹膜后未见明显肿大淋巴结。双侧上颌窦内示液体密度影。甲状腺显示可，咽喉壁不厚。双颈上深示数个略大淋巴结，大者短径约0.7CM。脑实质密度均匀腰椎椎体前缘可见棘状突起。诸骨质未见明显破坏征象。</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2230,7 +2230,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>结合临床,左乳癌术后,肝内低密度灶,转移可能性大,请结合前片左乳术后,术区未见增厚及异常强化征象。左腋窝结构紊乱。右乳及右腋窝未见异常。纵隔内未见肿大淋巴结。双肺野清晰。扫描野肝实质内可见低密度结节灶,大小约1.7CM×2.3CM,边缘欠清,轻度强化。</t>
+          <t>结合临床，左乳癌术后，肝内低密度灶，转移可能性大，请结合前片左乳术后，术区未见增厚及异常强化征象。左腋窝结构紊乱。右乳及右腋窝未见异常。纵隔内未见肿大淋巴结。双肺野清晰。扫描野肝实质内可见低密度结节灶，大小约1.7CM×2.3CM，边缘欠清，轻度强化。</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2247,7 +2247,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1.右肺下叶占位,考虑周围型肺癌,较前CT(2016-12-21)病灶增大;双肺多发粟粒灶,转移可能,较前相仿;2.肺气肿;双肺多发条索灶;5.心脏增大,心包少量积液,积液量较前略增多;6.双侧多发肋骨骨质密度欠规整。右肺下叶可见椭圆形高密度团块影,大小约3.31CM×4.90CM,CT值27HU,浅分叶,密度尚均,边界较清,病灶与邻近胸膜宽基底相连。双肺可见多发粟粒影。双肺可见多发条索影。双肺可见多发小片状透亮影。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。两胸腔未见积液征象。左肺尖胸膜肥厚。左房、右房增大,主动脉及冠状动脉见钙化影,心包可见少量液体密度影。双侧多根肋骨骨质形态欠规整。</t>
+          <t>1.右肺下叶占位，考虑周围型肺癌，较前CT(2016-12-21)病灶增大；双肺多发粟粒灶，转移可能，较前相仿；2.肺气肿；双肺多发条索灶；5.心脏增大，心包少量积液，积液量较前略增多；6.双侧多发肋骨骨质密度欠规整。右肺下叶可见椭圆形高密度团块影，大小约3.31CM×4.90CM，CT值27HU，浅分叶，密度尚均，边界较清，病灶与邻近胸膜宽基底相连。双肺可见多发粟粒影。双肺可见多发条索影。双肺可见多发小片状透亮影。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。两胸腔未见积液征象。左肺尖胸膜肥厚。左房、右房增大，主动脉及冠状动脉见钙化影，心包可见少量液体密度影。双侧多根肋骨骨质形态欠规整。</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2269,7 +2269,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>左肺下叶背段可见肿块影,边界模糊,径约7.03CM×5.96CM,CT值约19-37HU,左肺下叶部分支气管截断,左侧肺门可见增大淋巴结,左下肺动脉受侵,侵及胸膜;双肺下叶胸膜下多发类圆形小结节影,大者径约1.37CM×1.59CM;双肺小叶间隔增厚,近胸膜处多发囊状无肺纹理透亮区,纵膈内可见增大淋巴结,大者径约1.62CM×1.08CM。心脏大血管未见异常。1.左肺下叶中央型肺癌,左下肺动静脉受侵可能,纵隔及左肺门淋巴结转移;2.双肺下叶多发类圆形小结节,考虑转移瘤;3.双肺弥漫性间质纤维化。</t>
+          <t>左肺下叶背段可见肿块影，边界模糊，径约7.03CM×5.96CM，CT值约19-37HU，左肺下叶部分支气管截断，左侧肺门可见增大淋巴结，左下肺动脉受侵，侵及胸膜；双肺下叶胸膜下多发类圆形小结节影，大者径约1.37CM×1.59CM；双肺小叶间隔增厚，近胸膜处多发囊状无肺纹理透亮区，纵膈内可见增大淋巴结，大者径约1.62CM×1.08CM。心脏大血管未见异常。1.左肺下叶中央型肺癌，左下肺动静脉受侵可能，纵隔及左肺门淋巴结转移；2.双肺下叶多发类圆形小结节，考虑转移瘤；3.双肺弥漫性间质纤维化。</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2291,7 +2291,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>左肺上叶纵隔旁可见软组织密度肿块影,大小约为3.3CM×2.4CM,CT值约为37HU,增强扫描三期CT值分别为31-59HU、39-79HU、41-71HU,邻近胸膜不规则肥厚;左侧锁骨上窝可见肿大淋巴结影,大小约为1.6CM×1.2CM,增强扫描可见强化。主肺动脉窗淋巴结轻度增大。左肺下叶(53)、右肺上叶(18、26、31)、右肺中叶(37)可见多个高密度结节影,大者直径约为0.6CM。前纵隔可见小结节;两肺野可见数个高密度小斑片影,边缘模糊。两胸腔无积液征象;心脏大血管未见异常。1.左肺上叶占位,首先考虑肺癌,合并左侧锁骨上窝淋巴结转移,主肺动脉窗淋巴结轻度增大,双肺多发小结节灶,请结合临床;2.前纵隔小结节。</t>
+          <t>左肺上叶纵隔旁可见软组织密度肿块影，大小约为3.3CM×2.4CM，CT值约为37HU，增强扫描三期CT值分别为31-59HU、39-79HU、41-71HU，邻近胸膜不规则肥厚；左侧锁骨上窝可见肿大淋巴结影，大小约为1.6CM×1.2CM，增强扫描可见强化。主肺动脉窗淋巴结轻度增大。左肺下叶(53)、右肺上叶(18、26、31)、右肺中叶(37)可见多个高密度结节影，大者直径约为0.6CM。前纵隔可见小结节；两肺野可见数个高密度小斑片影，边缘模糊。两胸腔无积液征象；心脏大血管未见异常。1.左肺上叶占位，首先考虑肺癌，合并左侧锁骨上窝淋巴结转移，主肺动脉窗淋巴结轻度增大，双肺多发小结节灶，请结合临床；2.前纵隔小结节。</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>右肺上叶占位,考虑周围型肺癌,伴右肺尖胸膜下、右侧斜裂胸膜转移,纵隔内多发小淋巴结,请结合临床。右肺上叶前段支气管局部分支管腔略窄,于纵隔旁见一类圆形肿块影,最大截面积约为2.90CM×2.98CM,密度均匀,CT值约为31HU,三期增强CT值分别为68、98、87HU,强化明显。右肺尖胸膜下、右侧斜裂可见多个类圆形结节影,边界清楚,大者径约1.0CM,均匀明显强化。所示气管支气管影通畅。纵隔内见多发淋巴结,大者短径0.4CM,中度均匀强化。两胸腔可见少量液体密度影。心脏大血管未见异常。</t>
+          <t>右肺上叶占位，考虑周围型肺癌，伴右肺尖胸膜下、右侧斜裂胸膜转移，纵隔内多发小淋巴结，请结合临床。右肺上叶前段支气管局部分支管腔略窄，于纵隔旁见一类圆形肿块影，最大截面积约为2.90CM×2.98CM，密度均匀，CT值约为31HU，三期增强CT值分别为68、98、87HU，强化明显。右肺尖胸膜下、右侧斜裂可见多个类圆形结节影，边界清楚，大者径约1.0CM，均匀明显强化。所示气管支气管影通畅。纵隔内见多发淋巴结，大者短径0.4CM，中度均匀强化。两胸腔可见少量液体密度影。心脏大血管未见异常。</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2335,7 +2335,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1.左肺上叶肺癌并左肺门及纵隔淋巴结转移,对比2013-04-09片未见明显变化;2.右肺上叶小结节,对比2013-04-09片未见明显变化;3.双肺纵隔旁及胸膜下放射性肺炎,对比2013-04-09片炎症加重;4.双侧胸膜略厚,心包增厚。左肺上叶近纵隔旁见团片状软组织影,最大截面大小约为7.0CM×2.4CM,CT值约35HU;右肺上叶后段可见一结节,径约0.5CM;双肺纵隔旁及胸膜下见多个条索状及斑片状高密度影。腔静脉间隙、主动脉弓旁、气管隆突上纵隔及左肺门多发结节状软组织影,密度欠均匀,见小斑片状高密度影,部分融合。双侧胸膜略增厚。心影不大,大血管壁可见钙化影,心包增厚。</t>
+          <t>1.左肺上叶肺癌并左肺门及纵隔淋巴结转移，对比2013-04-09片未见明显变化；2.右肺上叶小结节，对比2013-04-09片未见明显变化；3.双肺纵隔旁及胸膜下放射性肺炎，对比2013-04-09片炎症加重；4.双侧胸膜略厚，心包增厚。左肺上叶近纵隔旁见团片状软组织影，最大截面大小约为7.0CM×2.4CM，CT值约35HU；右肺上叶后段可见一结节，径约0.5CM；双肺纵隔旁及胸膜下见多个条索状及斑片状高密度影。腔静脉间隙、主动脉弓旁、气管隆突上纵隔及左肺门多发结节状软组织影，密度欠均匀，见小斑片状高密度影，部分融合。双侧胸膜略增厚。心影不大，大血管壁可见钙化影，心包增厚。</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2357,7 +2357,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>左乳外侧局部结构紊乱,未见具体结节及异常强化灶。左肺下叶见斑片影。左肺下叶胸膜下见一直径不足0.5CM小类结节灶。双侧腋窝见短径不足1.0CM小淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝、胆、胰、脾、双侧肾上腺及双肾未见异常。腹腔及腹膜后、膈上见短径不足0.5CM小淋巴结。宫颈体积稍大,密度不均,增强后强化不均。宫体体积不规则增大,见多发软组织结节灶,增强后呈高低不均强化。左侧附件略饱满。膀胱充盈良好,壁未见增厚。盆腔内髂血管旁、骶前见短径不足0.5CM小淋巴结。多发椎体示密度不均。左侧坐骨局限性骨质密度减低。1.结合临床,左乳癌,宫颈转移,骨转移2.左肺下叶类结节灶,左肺炎症3.子宫肌瘤4.左侧附件略饱满5.双侧腋窝、腹腔腹膜后、盆腔小淋巴结以上请结合临床</t>
+          <t>左乳外侧局部结构紊乱，未见具体结节及异常强化灶。左肺下叶见斑片影。左肺下叶胸膜下见一直径不足0.5CM小类结节灶。双侧腋窝见短径不足1.0CM小淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝、胆、胰、脾、双侧肾上腺及双肾未见异常。腹腔及腹膜后、膈上见短径不足0.5CM小淋巴结。宫颈体积稍大，密度不均，增强后强化不均。宫体体积不规则增大，见多发软组织结节灶，增强后呈高低不均强化。左侧附件略饱满。膀胱充盈良好，壁未见增厚。盆腔内髂血管旁、骶前见短径不足0.5CM小淋巴结。多发椎体示密度不均。左侧坐骨局限性骨质密度减低。1.结合临床，左乳癌，宫颈转移，骨转移2.左肺下叶类结节灶，左肺炎症3.子宫肌瘤4.左侧附件略饱满5.双侧腋窝、腹腔腹膜后、盆腔小淋巴结以上请结合临床</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2374,7 +2374,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>所示右乳外上象限可见肿块影,分叶状,CT值约22HU,右侧乳腺皮肤增厚,乳头内陷;右侧腋窝可见多发肿大淋巴结,大者大小约3.57CM×3.12CM。右肺尖(44)、右肺中叶(29)、左肺斜裂旁(40)可见多发结节影,大者位于右肺尖,长径约1.31CM;双肺可见索条影。双肺支气管血管束增强。两肺门区未见异常。纵隔未见肿大淋巴结。心脏不大,主动脉、冠状动脉走行区局部可见条状致密影。所示肝内可见多发团片状稍低密度影。1.右乳外上象限肿块-乳腺癌?右侧腋窝淋巴结转移;2.双肺多发小结节,随诊;3.肝内多发低密度灶,详查;以上征象较201-09-28未见明显变化。</t>
+          <t>所示右乳外上象限可见肿块影，分叶状，CT值约22HU，右侧乳腺皮肤增厚，乳头内陷；右侧腋窝可见多发肿大淋巴结，大者大小约3.57CM×3.12CM。右肺尖(44)、右肺中叶(29)、左肺斜裂旁(40)可见多发结节影，大者位于右肺尖，长径约1.31CM；双肺可见索条影。双肺支气管血管束增强。两肺门区未见异常。纵隔未见肿大淋巴结。心脏不大，主动脉、冠状动脉走行区局部可见条状致密影。所示肝内可见多发团片状稍低密度影。1.右乳外上象限肿块-乳腺癌?右侧腋窝淋巴结转移；2.双肺多发小结节，随诊；3.肝内多发低密度灶，详查；以上征象较201-09-28未见明显变化。</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2391,7 +2391,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1.右下中心型肺癌,右肺多发转移瘤,侵及右侧胸膜,右侧多个肋骨成骨性转移,较2013.06.07CT片未见明显变化;2.右乳钙化结节,较前相仿;3.腹部病变,请结合腹部检查。4.左下肺胸膜下粟粒灶。5.右侧腋窝增大淋巴结。6.一上位胸椎致密影,请详查。双侧胸廓不对称,右侧胸廓塌陷,右肺体积减小,右肺下叶见团块状高密度影,形态不规则,边界不清楚,大小约3.97CM×4.64CM,CT值约29HU,右侧主支气管及下叶支气管受压变窄;右肺野及右胸膜可见高密度结节影,大小不一;右侧胸腔及右侧叶间裂见高密度影,部分包裹,右侧胸腔可见弧形液性密度影,右侧胸膜不均匀增厚。纵隔淋巴结增大,径长者约为1.28CM。心影大小正常范围。右侧第2、4、7、8肋骨骨质密度不均匀增高,形态不规整,其内可见骨质破坏。右侧乳腺内见一结节影,径约0.9CM,边界清晰,其内见点状钙化。</t>
+          <t>1.右下中心型肺癌，右肺多发转移瘤，侵及右侧胸膜，右侧多个肋骨成骨性转移，较2013.06.07CT片未见明显变化；2.右乳钙化结节，较前相仿；3.腹部病变，请结合腹部检查。4.左下肺胸膜下粟粒灶。5.右侧腋窝增大淋巴结。6.一上位胸椎致密影，请详查。双侧胸廓不对称，右侧胸廓塌陷，右肺体积减小，右肺下叶见团块状高密度影，形态不规则，边界不清楚，大小约3.97CM×4.64CM，CT值约29HU，右侧主支气管及下叶支气管受压变窄；右肺野及右胸膜可见高密度结节影，大小不一；右侧胸腔及右侧叶间裂见高密度影，部分包裹，右侧胸腔可见弧形液性密度影，右侧胸膜不均匀增厚。纵隔淋巴结增大，径长者约为1.28CM。心影大小正常范围。右侧第2、4、7、8肋骨骨质密度不均匀增高，形态不规整，其内可见骨质破坏。右侧乳腺内见一结节影，径约0.9CM，边界清晰，其内见点状钙化。</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2413,7 +2413,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>1.右肺中叶周围型肺癌,纵隔多发淋巴结转移;2.右肺下叶背段结节,考虑转移瘤可能,请随诊;3.双肺小结节,随诊;4.右肺下叶支气管扩张;5.全心大,心包少量积液。右肺中叶见团块影,边界不清,径约2.5CM×3.4CM,CT值约39HU,增强三期分别为54、58、67HU。右肺尖(10)、右肺上叶(28)、下叶后基底段(33)、左肺上叶舌段(34)、下叶基底段(35)小结节影,径约0.3CM。右肺下叶背段(29)结节影,径约1.0CM。两肺门区未见异常。右肺下叶支气管轻度扩张,管壁稍增厚。纵隔内多发肿大淋巴结,短径约2.5CM,增强均匀强化。两胸腔无积液征象。主动脉壁及冠脉壁见弧形高密度影。全心大,心包稍增厚。</t>
+          <t>1.右肺中叶周围型肺癌，纵隔多发淋巴结转移；2.右肺下叶背段结节，考虑转移瘤可能，请随诊；3.双肺小结节，随诊；4.右肺下叶支气管扩张；5.全心大，心包少量积液。右肺中叶见团块影，边界不清，径约2.5CM×3.4CM，CT值约39HU，增强三期分别为54、58、67HU。右肺尖(10)、右肺上叶(28)、下叶后基底段(33)、左肺上叶舌段(34)、下叶基底段(35)小结节影，径约0.3CM。右肺下叶背段(29)结节影，径约1.0CM。两肺门区未见异常。右肺下叶支气管轻度扩张，管壁稍增厚。纵隔内多发肿大淋巴结，短径约2.5CM，增强均匀强化。两胸腔无积液征象。主动脉壁及冠脉壁见弧形高密度影。全心大，心包稍增厚。</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2435,7 +2435,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>1.右肺下叶周围型肺癌,右肺门及纵隔淋巴结大,考虑转移可能性大,随诊;2.右肺上叶及左肺下叶炎症;3.一上位胸椎结节高密度影,随诊除外转移。双肺纹理增强,右肺上叶及左肺下叶可见斑片模糊影,右肺下叶可见团块影,分叶状,大小约3.5CM×4.9CM,CT值约31HU,增强后明显强化,各期CT值依次为41HU、37HU、32HU。右肺门及纵隔内可见肿大淋巴结,心影不大。双侧胸腔内未见明显积液征象。一上位胸椎可见结节高密度影。</t>
+          <t>1.右肺下叶周围型肺癌，右肺门及纵隔淋巴结大，考虑转移可能性大，随诊；2.右肺上叶及左肺下叶炎症；3.一上位胸椎结节高密度影，随诊除外转移。双肺纹理增强，右肺上叶及左肺下叶可见斑片模糊影，右肺下叶可见团块影，分叶状，大小约3.5CM×4.9CM，CT值约31HU，增强后明显强化，各期CT值依次为41HU、37HU、32HU。右肺门及纵隔内可见肿大淋巴结，心影不大。双侧胸腔内未见明显积液征象。一上位胸椎可见结节高密度影。</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1.右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移,较2014-10-13相仿;2.右肺下叶磨玻璃结节,较前相仿;3.所示多发骨转移征象,右侧第10后肋病理性骨折,左侧第10后肋形态欠规整,胸2椎体内及胸骨柄内病灶较前部分范围略增大。右肺下叶背段见类圆形肿块影,约2.14CM×1.82CM,边缘不规整,可见多发毛刺影,并见血管影进入,牵拉邻近胸膜,其CT值约35HU。右肺下叶见斑片影(S39)。右肺门区及纵隔内可见多发肿大淋巴结影,大者短径约2.18CM,双侧胸腔未见积液征象。心脏大血管未见异常。双侧第10后肋、胸骨柄及胸骨体内可见高密度影,胸2椎体内可见结节状高密度影,胸2附件骨质可见溶骨性破坏区。</t>
+          <t>1.右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移，较2014-10-13相仿；2.右肺下叶磨玻璃结节，较前相仿；3.所示多发骨转移征象，右侧第10后肋病理性骨折，左侧第10后肋形态欠规整，胸2椎体内及胸骨柄内病灶较前部分范围略增大。右肺下叶背段见类圆形肿块影，约2.14CM×1.82CM，边缘不规整，可见多发毛刺影，并见血管影进入，牵拉邻近胸膜，其CT值约35HU。右肺下叶见斑片影(S39)。右肺门区及纵隔内可见多发肿大淋巴结影，大者短径约2.18CM，双侧胸腔未见积液征象。心脏大血管未见异常。双侧第10后肋、胸骨柄及胸骨体内可见高密度影，胸2椎体内可见结节状高密度影，胸2附件骨质可见溶骨性破坏区。</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2479,7 +2479,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>右乳术后缺如,术区未见异常密度灶。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门及纵隔未见肿大淋巴结。左侧内乳区见小淋巴结,短径不足0.5CM。右肺中叶见一结节灶(图3-28),直径约0.3CM,密度较低。右肺下叶见少许斑片影,局部似呈类结节状,邻近胸膜略增厚。扫描野内肝实质密度均匀减低。肝内见斑点状钙化灶。胸骨及部分胸椎示骨质破坏。鼻咽、口咽、喉及下咽未见异常。左侧锁骨上及左侧颈后三角区示数个小结节灶,大者短径约1.0CM,密度较低。余双侧颈动脉鞘区见短径不足0.5CM小淋巴结。左侧上颌窦粘膜略增厚。1.结合临床,右乳癌术后改变;骨转移,较前(2015-5-19)变化不著;左锁骨上淋巴结肿大,较前略饱满2.右肺中叶结节灶,略缩小;右肺下叶炎症伴类结节灶,建议观察3.脂肪肝,肝内钙化灶4.左侧副鼻窦炎,变化不著</t>
+          <t>右乳术后缺如，术区未见异常密度灶。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门及纵隔未见肿大淋巴结。左侧内乳区见小淋巴结，短径不足0.5CM。右肺中叶见一结节灶(图3-28)，直径约0.3CM，密度较低。右肺下叶见少许斑片影，局部似呈类结节状，邻近胸膜略增厚。扫描野内肝实质密度均匀减低。肝内见斑点状钙化灶。胸骨及部分胸椎示骨质破坏。鼻咽、口咽、喉及下咽未见异常。左侧锁骨上及左侧颈后三角区示数个小结节灶，大者短径约1.0CM，密度较低。余双侧颈动脉鞘区见短径不足0.5CM小淋巴结。左侧上颌窦粘膜略增厚。1.结合临床，右乳癌术后改变；骨转移，较前(2015-5-19)变化不著；左锁骨上淋巴结肿大，较前略饱满2.右肺中叶结节灶，略缩小；右肺下叶炎症伴类结节灶，建议观察3.脂肪肝，肝内钙化灶4.左侧副鼻窦炎，变化不著</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2496,7 +2496,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>右肺尖可见团片影,边界毛糙,可见多发毛刺样影牵拉胸膜,最大层面约4.6CM×3.8CM,平扫CT值约35-45HU,周围可见多发片絮样模糊影;右肺上叶后段可见小粟粒影(S24);右肺中叶外侧段、即左肺上叶上舌段(S29、32)、左肺下叶后基底段(S40、43)可见小结节样淡片影,大者径长约0.9CM,边缘模糊;左肺下叶外基底段(S45)可能小空泡样影,径长约0.9CM,周围可见少许高密度影;左肺下叶背段可见空泡影,边界欠清,径长约1.0CM。纵隔内淋巴结肿大,边界欠清,大者短径约1.1CM。主动脉可见少许钙化影。1.右肺尖占位,考虑肺癌,纵隔淋巴结转移;2.双肺多发结节、左肺下叶空泡(两枚),随诊;以上征象较前(2013-12-13)相仿。</t>
+          <t>右肺尖可见团片影，边界毛糙，可见多发毛刺样影牵拉胸膜，最大层面约4.6CM×3.8CM，平扫CT值约35-45HU，周围可见多发片絮样模糊影；右肺上叶后段可见小粟粒影(S24)；右肺中叶外侧段、即左肺上叶上舌段(S29、32)、左肺下叶后基底段(S40、43)可见小结节样淡片影，大者径长约0.9CM，边缘模糊；左肺下叶外基底段(S45)可能小空泡样影，径长约0.9CM，周围可见少许高密度影；左肺下叶背段可见空泡影，边界欠清，径长约1.0CM。纵隔内淋巴结肿大，边界欠清，大者短径约1.1CM。主动脉可见少许钙化影。1.右肺尖占位，考虑肺癌，纵隔淋巴结转移；2.双肺多发结节、左肺下叶空泡(两枚)，随诊；以上征象较前(2013-12-13)相仿。</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2518,7 +2518,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>左侧乳腺肿胀,局部见一较大软组织信号肿块,大小约5.4CM×3.0CM,边缘分叶毛糙,与腺体分界不清,并累及相邻胸肌;表现为T1WI等低信号,T2WI略高信号,压脂序列及DWI呈高信号,增强扫描可见明显强化,并可见左侧乳腺皮肤增厚,乳头内陷,增厚的皮肤内可见强化结节灶。左侧腋窝多发小淋巴结,大者短径约0.6CM。右侧乳腺内可见多发类结节状及斑片状异常信号,信号略示不均,表现平扫未见异常信号,DWI呈略高信号,增强扫描可见强化,部分边界清,部分模糊。右侧腋窝见数个小淋巴结,大者直径约0.5CM。胸骨局部及部分胸椎椎体内可见斑片状异常信号,1.左乳癌伴局部皮肤破溃(BI-RADS5级);局部皮肤结节灶,考虑转移;左侧腋窝淋巴结肿大2.右侧乳腺结节灶(BI-RADS4级),建议穿刺活检;右侧腋窝小淋巴结</t>
+          <t>左侧乳腺肿胀，局部见一较大软组织信号肿块，大小约5.4CM×3.0CM，边缘分叶毛糙，与腺体分界不清，并累及相邻胸肌；表现为T1WI等低信号，T2WI略高信号，压脂序列及DWI呈高信号，增强扫描可见明显强化，并可见左侧乳腺皮肤增厚，乳头内陷，增厚的皮肤内可见强化结节灶。左侧腋窝多发小淋巴结，大者短径约0.6CM。右侧乳腺内可见多发类结节状及斑片状异常信号，信号略示不均，表现平扫未见异常信号，DWI呈略高信号，增强扫描可见强化，部分边界清，部分模糊。右侧腋窝见数个小淋巴结，大者直径约0.5CM。胸骨局部及部分胸椎椎体内可见斑片状异常信号，1.左乳癌伴局部皮肤破溃(BI-RADS5级)；局部皮肤结节灶，考虑转移；左侧腋窝淋巴结肿大2.右侧乳腺结节灶(BI-RADS4级)，建议穿刺活检；右侧腋窝小淋巴结</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2540,7 +2540,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>左乳外侧局部结构紊乱,局部可见小斑片状强化影。左肺下叶见索条影。左肺下叶胸膜下见一直径不足0.5CM小类结节灶。双侧腋窝、胸肌间及左锁上见短径不足1.0CM小淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。左侧肾上腺饱满,肝、胆、胰、脾、右侧肾上腺及双肾未见异常。腹腔及腹膜后、膈上见大者短径约0.5CM小淋巴结。宫颈体积稍大,强化不均。宫体体积不规则增大,见多发软组织密度灶,增强后呈不均匀强化。双侧附件饱满。膀胱充盈良好,壁未见增厚。盆腔内髂血管旁、骶前见短径不足0.5CM小淋巴结。多发椎骨及胸骨密度不均,部分周围示软组织密度影,以胸椎周围为著,与邻近结构分界不清。双侧坐骨局限性骨质密度减低。右侧部分肋骨骨质中断。1.结合临床,左乳癌术后,术区小片影,较前(2016-6-14)变化不著;宫颈转移治疗后,变化不著;骨转移,较前胸椎周围软组织密度增大,余基本变化不著2.左肺下叶类结节灶,变化不著;左肺纤维灶3.考虑子宫肌瘤,变化不著4.双侧附件略饱满,变化不著5.双侧腋窝、左锁上、腹腔、腹膜后及盆腔小淋巴结,变化不著6.双侧坐骨局限性骨质密度减低,右侧部分肋骨骨折,均变化不著。</t>
+          <t>左乳外侧局部结构紊乱，局部可见小斑片状强化影。左肺下叶见索条影。左肺下叶胸膜下见一直径不足0.5CM小类结节灶。双侧腋窝、胸肌间及左锁上见短径不足1.0CM小淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。左侧肾上腺饱满，肝、胆、胰、脾、右侧肾上腺及双肾未见异常。腹腔及腹膜后、膈上见大者短径约0.5CM小淋巴结。宫颈体积稍大，强化不均。宫体体积不规则增大，见多发软组织密度灶，增强后呈不均匀强化。双侧附件饱满。膀胱充盈良好，壁未见增厚。盆腔内髂血管旁、骶前见短径不足0.5CM小淋巴结。多发椎骨及胸骨密度不均，部分周围示软组织密度影，以胸椎周围为著，与邻近结构分界不清。双侧坐骨局限性骨质密度减低。右侧部分肋骨骨质中断。1.结合临床，左乳癌术后，术区小片影，较前(2016-6-14)变化不著；宫颈转移治疗后，变化不著；骨转移，较前胸椎周围软组织密度增大，余基本变化不著2.左肺下叶类结节灶，变化不著；左肺纤维灶3.考虑子宫肌瘤，变化不著4.双侧附件略饱满，变化不著5.双侧腋窝、左锁上、腹腔、腹膜后及盆腔小淋巴结，变化不著6.双侧坐骨局限性骨质密度减低，右侧部分肋骨骨折，均变化不著。</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2557,7 +2557,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内未见肿大淋巴结。前纵隔胸腺区可见一低密度灶,直径约1.0CM,边界清,强化不著。右肺上叶可见两个结节灶,大者直径约2.5CM,边缘尚清晰,增强扫描可见强化。右侧斜裂胸膜增厚。肝脏密度减低,实质内可见两个结节灶,直径约1.5CM,动脉期边缘结节样强化,门脉期及延迟扫描对比剂向心性充填。另第二肝门区略可见低密度灶,直径约1.0CM,边缘尚清。另肝内见一点状致密影。胆、胰、脾及双肾未见异常。腹膜后未见肿大淋巴结。1.结合临床,右乳癌术后;右肺结节灶,考虑转移,较前(2014-04-23)片增大。3.右侧叶间胸膜增厚4.前纵隔胸腺区低密度灶,变化不著5.肝内低密度灶,较前变化不著6.肝血管瘤7.脂肪肝;肝内钙化灶</t>
+          <t>右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内未见肿大淋巴结。前纵隔胸腺区可见一低密度灶，直径约1.0CM，边界清，强化不著。右肺上叶可见两个结节灶，大者直径约2.5CM，边缘尚清晰，增强扫描可见强化。右侧斜裂胸膜增厚。肝脏密度减低，实质内可见两个结节灶，直径约1.5CM，动脉期边缘结节样强化，门脉期及延迟扫描对比剂向心性充填。另第二肝门区略可见低密度灶，直径约1.0CM，边缘尚清。另肝内见一点状致密影。胆、胰、脾及双肾未见异常。腹膜后未见肿大淋巴结。1.结合临床，右乳癌术后；右肺结节灶，考虑转移，较前(2014-04-23)片增大。3.右侧叶间胸膜增厚4.前纵隔胸腺区低密度灶，变化不著5.肝内低密度灶，较前变化不著6.肝血管瘤7.脂肪肝；肝内钙化灶</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2574,7 +2574,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1.右乳癌术后,右腋顶部、右颈根部、锁上、左腋窝、纵隔及双肺门淋巴结转移,部分较前进展,部分较前变化不著;双肺转移,较前进展;肝转移,较前好转2.肝脏小囊肿;右肾小囊肿3.左乳异常强化灶,较前略示明显,建议观察。右乳术后缺如,术区未见异常增厚及强化。左乳腺体内可见点片状异常强化区。右腋顶部、右颈根部、锁上、左腋窝、纵隔内血管前间隙、气管前腔静脉后、主肺动脉窗区及双肺门示多发肿大淋巴结,大者短径约1.2CM。双肺示多发结节及肿块,大者直径约4.5CM,可见强化。左肺下叶可见斑片状密度增高影。肝左右叶交界处示一低密度结节灶,直径约0.8CM,边缘模糊,可见边缘强化。余肝内可见小的囊性密度灶。胆胰脾肾上腺及左肾未见异常。右肾示小囊肿。腹腔腹膜后未见明显肿大淋巴结。骨窗未见明显破坏征象。</t>
+          <t>1.右乳癌术后，右腋顶部、右颈根部、锁上、左腋窝、纵隔及双肺门淋巴结转移，部分较前进展，部分较前变化不著；双肺转移，较前进展；肝转移，较前好转2.肝脏小囊肿；右肾小囊肿3.左乳异常强化灶，较前略示明显，建议观察。右乳术后缺如，术区未见异常增厚及强化。左乳腺体内可见点片状异常强化区。右腋顶部、右颈根部、锁上、左腋窝、纵隔内血管前间隙、气管前腔静脉后、主肺动脉窗区及双肺门示多发肿大淋巴结，大者短径约1.2CM。双肺示多发结节及肿块，大者直径约4.5CM，可见强化。左肺下叶可见斑片状密度增高影。肝左右叶交界处示一低密度结节灶，直径约0.8CM，边缘模糊，可见边缘强化。余肝内可见小的囊性密度灶。胆胰脾肾上腺及左肾未见异常。右肾示小囊肿。腹腔腹膜后未见明显肿大淋巴结。骨窗未见明显破坏征象。</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2591,7 +2591,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>1.左肺门占位,较2016.7.26CT片增大,考虑中央型肺癌伴阻塞性肺炎;气管隆突下、左肺门淋巴结转移,较前增大,与食管、主动脉、左肺动脉分界不清;2.双肺多发粟粒灶,较前增多;3.右肺上叶钙化灶;4.所示肝内、左肾多发低密度灶,左侧部分肋骨欠规整,请结合相关检查。请结合临床。左肺门增大,见团片影,边界不清,较大层面大小约3.9CM×5.6CM,CT值约22HU;左肺支气管管腔狭窄,部分截断,远端肺组织内见条片状模糊影。双肺多发粟粒影,左肺为著。右肺上叶见点状致密影。气管隆突下、左肺门见肿大淋巴结,较大者短径约2.0CM。两胸腔未见积液征象。所示肝内、左肾多发类圆形低密度影,边界较清。</t>
+          <t>1.左肺门占位，较2016.7.26CT片增大，考虑中央型肺癌伴阻塞性肺炎；气管隆突下、左肺门淋巴结转移，较前增大，与食管、主动脉、左肺动脉分界不清；2.双肺多发粟粒灶，较前增多；3.右肺上叶钙化灶；4.所示肝内、左肾多发低密度灶，左侧部分肋骨欠规整，请结合相关检查。请结合临床。左肺门增大，见团片影，边界不清，较大层面大小约3.9CM×5.6CM，CT值约22HU；左肺支气管管腔狭窄，部分截断，远端肺组织内见条片状模糊影。双肺多发粟粒影，左肺为著。右肺上叶见点状致密影。气管隆突下、左肺门见肿大淋巴结，较大者短径约2.0CM。两胸腔未见积液征象。所示肝内、左肾多发类圆形低密度影，边界较清。</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>左肺下叶近肺门处可见一团块状高密度影,边界不清,周围可见毛刺及分叶,大小约为5.91CM×5.77CM,平扫CT值约为31HU;增强扫描可见明显强化,三期CT值分别为45HU、68HU、66HU;左肺门区支气管及大血管未见明显受侵。左肺上叶前段少许淡片状高密度影,并可见一圆形透亮影。所示右肺门及气管支气管影正常。纵隔内可见多个增大的淋巴结,大者约为3.63CM×1.85CM。两胸腔无积液征象。心脏大血管未见异常。左肺门区占位,纵隔淋巴结肿大,考虑为左肺中心型肺癌并阻塞性炎症,纵隔淋巴结转移,请结合临床,随诊。</t>
+          <t>左肺下叶近肺门处可见一团块状高密度影，边界不清，周围可见毛刺及分叶，大小约为5.91CM×5.77CM，平扫CT值约为31HU；增强扫描可见明显强化，三期CT值分别为45HU、68HU、66HU；左肺门区支气管及大血管未见明显受侵。左肺上叶前段少许淡片状高密度影，并可见一圆形透亮影。所示右肺门及气管支气管影正常。纵隔内可见多个增大的淋巴结，大者约为3.63CM×1.85CM。两胸腔无积液征象。心脏大血管未见异常。左肺门区占位，纵隔淋巴结肿大，考虑为左肺中心型肺癌并阻塞性炎症，纵隔淋巴结转移，请结合临床，随诊。</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2635,7 +2635,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>左肺门区可见软组织团块影,CT值约34HU,形态不规则,边界欠清,最大层面范围约为7.0CM×3.8CM;左肺下叶局部支气管狭窄。右肺上叶(45)后段见片状稍高密度影,边界欠清。右肺见散在小淡片影,边界欠清;纵隔内见增大淋巴结影,大者短径约2.6CM。双侧胸腔见液弧形液体密度影。左心房略增大,部分主动脉及冠状动脉壁见钙化影,心包略增厚。1.左肺门区肿块,纵隔内多发增大淋巴结,考虑恶性肿瘤伴纵隔淋巴结转移可能性大,较2014-03-28CT左肺门区肿块及纵隔淋巴结均较前增大;2.双侧胸腔积液,较前减少;3.右肺上叶斑片影,考虑炎症,较前新发;4.左心房略增大,心包略增厚,较前相仿。</t>
+          <t>左肺门区可见软组织团块影，CT值约34HU，形态不规则，边界欠清，最大层面范围约为7.0CM×3.8CM；左肺下叶局部支气管狭窄。右肺上叶(45)后段见片状稍高密度影，边界欠清。右肺见散在小淡片影，边界欠清；纵隔内见增大淋巴结影，大者短径约2.6CM。双侧胸腔见液弧形液体密度影。左心房略增大，部分主动脉及冠状动脉壁见钙化影，心包略增厚。1.左肺门区肿块，纵隔内多发增大淋巴结，考虑恶性肿瘤伴纵隔淋巴结转移可能性大，较2014-03-28CT左肺门区肿块及纵隔淋巴结均较前增大；2.双侧胸腔积液，较前减少；3.右肺上叶斑片影，考虑炎症，较前新发；4.左心房略增大，心包略增厚，较前相仿。</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2657,7 +2657,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>右乳内上象限可见软组织密度结节灶,大者截面大小约1.0CM×0.9CM,边缘较模糊,与周围腺体分界欠清,增强后呈较显著强化。右侧腋窝未见明显肿大淋巴结。左乳及左侧腋窝未见明显肿大淋巴结。双侧肺野内可见散在小结节灶,边界较模糊,大者直径约0.3CM。纵隔内主动脉弓旁可见肿大淋巴结,大者短径约0.8CM。心包内示少量液体密度影。所扫肝内示低密度灶,直径约0.7CM,边缘略模糊,强化不著。1.右乳癌,较前(2016-03-11)片好转;右侧腋窝淋巴结转移治疗后基本消失2.双肺类结节灶,变化不著3.纵隔淋巴结肿大,较前略缩小4.肝内低密度灶,考虑囊肿,变化不著5.心包少量积液</t>
+          <t>右乳内上象限可见软组织密度结节灶，大者截面大小约1.0CM×0.9CM，边缘较模糊，与周围腺体分界欠清，增强后呈较显著强化。右侧腋窝未见明显肿大淋巴结。左乳及左侧腋窝未见明显肿大淋巴结。双侧肺野内可见散在小结节灶，边界较模糊，大者直径约0.3CM。纵隔内主动脉弓旁可见肿大淋巴结，大者短径约0.8CM。心包内示少量液体密度影。所扫肝内示低密度灶，直径约0.7CM，边缘略模糊，强化不著。1.右乳癌，较前(2016-03-11)片好转；右侧腋窝淋巴结转移治疗后基本消失2.双肺类结节灶，变化不著3.纵隔淋巴结肿大，较前略缩小4.肝内低密度灶，考虑囊肿，变化不著5.心包少量积液</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2679,7 +2679,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>左乳术后缺如,部分胸肌存在,术区皮肤及软组织略增厚,增强后不均匀强化;左侧腋窝术后,见多发淋巴结,大者短径约0.6CM。右乳及右侧腋窝未见明确异常。左侧内乳区见短径不足0.5CM小淋巴结。左肺上叶胸膜下可见类结节灶,直径约0.2CM。左肺下叶可见斑片状影。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。胸腔内未见积液。胸廓诸骨未见骨质破坏。肝脏形态、大小可,实质内未见异常。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺未见异常。腹膜后见短径不足0.5CM小淋巴结。部分椎体密度减低。1.左乳癌术后复发并左腋窝多发淋巴结转移,较前(2016-12-23)变化不著;左侧内乳区小淋巴结较前变化不著。2.左肺类结节灶,较前变化不著。3.腹膜后小淋巴结较前变化不著。4.椎体部分密度减低变化不著。</t>
+          <t>左乳术后缺如，部分胸肌存在，术区皮肤及软组织略增厚，增强后不均匀强化；左侧腋窝术后，见多发淋巴结，大者短径约0.6CM。右乳及右侧腋窝未见明确异常。左侧内乳区见短径不足0.5CM小淋巴结。左肺上叶胸膜下可见类结节灶，直径约0.2CM。左肺下叶可见斑片状影。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。胸腔内未见积液。胸廓诸骨未见骨质破坏。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺未见异常。腹膜后见短径不足0.5CM小淋巴结。部分椎体密度减低。1.左乳癌术后复发并左腋窝多发淋巴结转移，较前(2016-12-23)变化不著；左侧内乳区小淋巴结较前变化不著。2.左肺类结节灶，较前变化不著。3.腹膜后小淋巴结较前变化不著。4.椎体部分密度减低变化不著。</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2696,7 +2696,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>左肺上叶舌段及下叶基底段可见不规则团块影,大者约3.09CM×2.00CM,CT值约32HU,周围可见血管集束征及毛刺征。双肺可见多发结节影,大者径约1.59CM。纵隔内可见多发肿大淋巴结影,左肺门增大。两胸腔未见积液征象。冠脉可见致密影。颈7-胸1椎可见低密度影。1、左肺上叶肺癌,纵隔内多发淋巴结转移,双肺多发转移瘤;2、颈7-胸1骨转移瘤。</t>
+          <t>左肺上叶舌段及下叶基底段可见不规则团块影，大者约3.09CM×2.00CM，CT值约32HU，周围可见血管集束征及毛刺征。双肺可见多发结节影，大者径约1.59CM。纵隔内可见多发肿大淋巴结影，左肺门增大。两胸腔未见积液征象。冠脉可见致密影。颈7-胸1椎可见低密度影。1、左肺上叶肺癌，纵隔内多发淋巴结转移，双肺多发转移瘤；2、颈7-胸1骨转移瘤。</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2718,7 +2718,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>左肺上叶近纵隔旁见团片状软组织影,最大截面大小约为6.6CM×3.0CM,平扫CT值约45HU。右肺上叶近水平裂见一结节。双肺纵隔旁可见多发条片状模糊影。主动脉弓旁、纵隔及左肺门多发淋巴结增大,大者短径约3.8CM,病灶互相融合。两胸腔无积液征象,双侧胸膜略增厚。心脏大血管形态未见异常,心包增厚。1.左肺上叶纵隔旁型肺癌伴左肺门及纵隔淋巴结转移,较2012-03-15CT进展;2.双肺纵隔旁放射性肺炎;双侧胸膜略厚,心包增厚;3.右肺上叶小结节,较前相仿。</t>
+          <t>左肺上叶近纵隔旁见团片状软组织影，最大截面大小约为6.6CM×3.0CM，平扫CT值约45HU。右肺上叶近水平裂见一结节。双肺纵隔旁可见多发条片状模糊影。主动脉弓旁、纵隔及左肺门多发淋巴结增大，大者短径约3.8CM，病灶互相融合。两胸腔无积液征象，双侧胸膜略增厚。心脏大血管形态未见异常，心包增厚。1.左肺上叶纵隔旁型肺癌伴左肺门及纵隔淋巴结转移，较2012-03-15CT进展；2.双肺纵隔旁放射性肺炎；双侧胸膜略厚，心包增厚；3.右肺上叶小结节，较前相仿。</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2740,7 +2740,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1.左肺上叶舌段中心型肺癌,伴远端阻塞性炎症、纵隔及双肺门淋巴结转移,请结合临床;2.支气管炎征象,轻度肺气肿,肺大泡;3.双肺多发钙化灶。左肺上叶舌段不规则形软组织密度影,边界清楚且呈分叶状改变,大小约:7.2CM×3.10CM,CT值约:21HU,左肺上叶舌段支气管狭窄、截断,远端片状高密度影,边界模糊;右肺尖小结节,径约:0.52CM;双肺多发囊状低密度影;双肺多发钙化灶;两肺门及纵隔内增大的淋巴结;右侧胸膜略增厚。心脏不大;心包略增厚。</t>
+          <t>1.左肺上叶舌段中心型肺癌，伴远端阻塞性炎症、纵隔及双肺门淋巴结转移，请结合临床；2.支气管炎征象，轻度肺气肿，肺大泡；3.双肺多发钙化灶。左肺上叶舌段不规则形软组织密度影，边界清楚且呈分叶状改变，大小约：7.2CM×3.10CM，CT值约：21HU，左肺上叶舌段支气管狭窄、截断，远端片状高密度影，边界模糊；右肺尖小结节，径约：0.52CM；双肺多发囊状低密度影；双肺多发钙化灶；两肺门及纵隔内增大的淋巴结；右侧胸膜略增厚。心脏不大；心包略增厚。</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2762,7 +2762,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>右侧胸廓塌陷,右肺体积减小,纵隔右移,右肺下叶见团块状高密度影,形态不规则,边界不清楚,较大层面大小约9.15CM×6.12CM,CT值约21HU,右侧主支气管及各叶支气管受压变窄;右肺小叶间隔增厚,右侧胸膜弥漫性增厚,右侧胸腔可见包裹性积液;右侧腋窝、纵隔淋巴结增大,大者短径约1.53CM。左肺下叶外基底段(S23)可见粟粒影。心包增厚,见弧形液体密度影,右侧第2、4、6、7、8肋骨、胸3、12椎体骨质密度不均匀增高,形态不规整。右第1肋欠整,右侧乳腺内见一结节影,径约1.01CM,边界清晰,其内见点状钙化。1.右下肺中心型肺癌,右肺淋巴道转移,右侧胸膜转移,右侧胸腔包裹性积液;右侧腋窝及纵隔淋巴结转移;右侧多个肋骨、胸3、12椎体成骨性转移,较2014.03.25胸部CT,右肺病变有所进展;2.心包积液,较前新发;3.左肺下叶外基底段粟粒灶,右乳钙化结节;右侧第1肋骨欠规整,较前相仿。</t>
+          <t>右侧胸廓塌陷，右肺体积减小，纵隔右移，右肺下叶见团块状高密度影，形态不规则，边界不清楚，较大层面大小约9.15CM×6.12CM，CT值约21HU，右侧主支气管及各叶支气管受压变窄；右肺小叶间隔增厚，右侧胸膜弥漫性增厚，右侧胸腔可见包裹性积液；右侧腋窝、纵隔淋巴结增大，大者短径约1.53CM。左肺下叶外基底段(S23)可见粟粒影。心包增厚，见弧形液体密度影，右侧第2、4、6、7、8肋骨、胸3、12椎体骨质密度不均匀增高，形态不规整。右第1肋欠整，右侧乳腺内见一结节影，径约1.01CM，边界清晰，其内见点状钙化。1.右下肺中心型肺癌，右肺淋巴道转移，右侧胸膜转移，右侧胸腔包裹性积液；右侧腋窝及纵隔淋巴结转移；右侧多个肋骨、胸3、12椎体成骨性转移，较2014.03.25胸部CT，右肺病变有所进展；2.心包积液，较前新发；3.左肺下叶外基底段粟粒灶，右乳钙化结节；右侧第1肋骨欠规整，较前相仿。</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2784,7 +2784,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1.右下中心型肺癌,右肺多发转移瘤,侵及右侧胸膜,右侧多个肋骨成骨性转移,较2013.04.19CT片,肋骨转移范围扩大;2.右乳钙化结节,较前相仿;3.腹部病变,请结合腹部检查。双侧胸廓不对称,右侧胸廓塌陷,右肺体积减小,右肺下叶见团块状高密度影,形态不规则,边界不清楚,大小约3.97CM×4.64CM,CT值约29HU,右侧主支气管及下叶支气管受压变窄;右肺野及右胸膜可见高密度结节影,大小不一;右侧胸腔及右侧叶间裂见高密度影,部分包裹,右侧胸腔可见弧形液性密度影,右侧胸膜不均匀增厚。纵隔淋巴结增大,径长者约为1.28CM。心影大小正常范围。右侧第2、4、7、8肋骨骨质密度不均匀增高,形态不规整,其内可见骨质破坏。右侧乳腺内见一结节影,径约0.9CM,边界清晰,其内见点状钙化。</t>
+          <t>1.右下中心型肺癌，右肺多发转移瘤，侵及右侧胸膜，右侧多个肋骨成骨性转移，较2013.04.19CT片，肋骨转移范围扩大；2.右乳钙化结节，较前相仿；3.腹部病变，请结合腹部检查。双侧胸廓不对称，右侧胸廓塌陷，右肺体积减小，右肺下叶见团块状高密度影，形态不规则，边界不清楚，大小约3.97CM×4.64CM，CT值约29HU，右侧主支气管及下叶支气管受压变窄；右肺野及右胸膜可见高密度结节影，大小不一；右侧胸腔及右侧叶间裂见高密度影，部分包裹，右侧胸腔可见弧形液性密度影，右侧胸膜不均匀增厚。纵隔淋巴结增大，径长者约为1.28CM。心影大小正常范围。右侧第2、4、7、8肋骨骨质密度不均匀增高，形态不规整，其内可见骨质破坏。右侧乳腺内见一结节影，径约0.9CM，边界清晰，其内见点状钙化。</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2806,7 +2806,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>右肺门见肿块影,肿块与上纵膈分界不清,内见结节状致密影,最大层面(S52)大小约6.09CM×4.48CM,平扫CT值约33HU,增强扫描三期CT值分别约55,78,65HU,右肺上叶、右肺中叶、右肺下叶支气管狭窄改变,远端伴斑片状模糊影。两肺透亮度不均,右侧胸腔积液、心包积液征象。两肺散在粟粒影。纵隔内见增大淋巴结,短径约1.51CM,增强呈中度强化。1、右上中心型肺癌并远端阻塞性肺炎,右上肺淋巴道转移可能性大;2、肺气肿,肺大泡;3、右侧胸腔积液、心包积液;</t>
+          <t>右肺门见肿块影，肿块与上纵膈分界不清，内见结节状致密影，最大层面(S52)大小约6.09CM×4.48CM，平扫CT值约33HU，增强扫描三期CT值分别约55，78，65HU，右肺上叶、右肺中叶、右肺下叶支气管狭窄改变，远端伴斑片状模糊影。两肺透亮度不均，右侧胸腔积液、心包积液征象。两肺散在粟粒影。纵隔内见增大淋巴结，短径约1.51CM，增强呈中度强化。1、右上中心型肺癌并远端阻塞性肺炎，右上肺淋巴道转移可能性大；2、肺气肿，肺大泡；3、右侧胸腔积液、心包积液；</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2828,7 +2828,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>1.左肺病变考虑恶性肿瘤,双肺、胸3椎体及纵隔淋巴结转移,较2011.12.28CT片未见明显改变;2.右肺上叶肺大泡。两肺纹理增强,双肺野内见多发大小不等密度增高影,部分呈磨玻璃密度改变,大者约1.9CM×1.1CM;右肺上叶尖段见囊状透过度增高区。左肺肋胸膜、膈胸膜、斜裂胸膜均明显增厚,最厚约2.06CM,CT值约37HU,增强扫描后3期CT值分别约45HU、56HU、69HU。两肺门区未见异常。所示气管支气管影正常。纵隔内见多发小淋巴结影,大者短径0.8CM。两胸腔无积液征象。主动脉管壁见钙化影。胸3椎体见结节样致密影。</t>
+          <t>1.左肺病变考虑恶性肿瘤，双肺、胸3椎体及纵隔淋巴结转移，较2011.12.28CT片未见明显改变；2.右肺上叶肺大泡。两肺纹理增强，双肺野内见多发大小不等密度增高影，部分呈磨玻璃密度改变，大者约1.9CM×1.1CM；右肺上叶尖段见囊状透过度增高区。左肺肋胸膜、膈胸膜、斜裂胸膜均明显增厚，最厚约2.06CM，CT值约37HU，增强扫描后3期CT值分别约45HU、56HU、69HU。两肺门区未见异常。所示气管支气管影正常。纵隔内见多发小淋巴结影，大者短径0.8CM。两胸腔无积液征象。主动脉管壁见钙化影。胸3椎体见结节样致密影。</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2845,7 +2845,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>右乳术后,术区可见多发软组织肿块影,部分隆起于表面,大者约1.4CM×2.4CM,增强扫描中等不均匀性强化。左乳未见异常。双肺清晰。右侧锁骨后方、右侧腋窝、胸肌后方、右侧内乳区可见软组织肿块影,大者短径约2.8CM,边界不清,轻度强化,部分与胸膜及肋软骨关系密切,局部肋软骨骨质略示稀疏。左侧锁骨上区可见片状密度增高影,边缘可见多发结节状钙化灶,增强扫描无明显强化。肝内似可见多发略低密度灶,大者直径约1.2CM,边缘模糊。肝左右叶交界区似可见一结节状强化灶(9-46),直径约0.6CM。左肾可见囊性密度灶。腹腔腹膜后未见肿大淋巴结。骨窗部分胸椎椎体及附件骨质局限性稀疏。1.结合临床,右乳癌术后复发并右侧锁骨上、腋窝、胸肌后方、内乳区淋巴结转移,部分较前(2015-12-4)变化不著,部分较前略进展2.左侧锁骨上区密度增高影,建议观察3.肝转移,较前进展,肝内强化灶,不典型血管瘤不除外,建议MRI检查定性4.左肾囊肿5.胸椎局限性骨质稀疏,变化不著,建议骨扫描定性</t>
+          <t>右乳术后，术区可见多发软组织肿块影，部分隆起于表面，大者约1.4CM×2.4CM，增强扫描中等不均匀性强化。左乳未见异常。双肺清晰。右侧锁骨后方、右侧腋窝、胸肌后方、右侧内乳区可见软组织肿块影，大者短径约2.8CM，边界不清，轻度强化，部分与胸膜及肋软骨关系密切，局部肋软骨骨质略示稀疏。左侧锁骨上区可见片状密度增高影，边缘可见多发结节状钙化灶，增强扫描无明显强化。肝内似可见多发略低密度灶，大者直径约1.2CM，边缘模糊。肝左右叶交界区似可见一结节状强化灶(9-46)，直径约0.6CM。左肾可见囊性密度灶。腹腔腹膜后未见肿大淋巴结。骨窗部分胸椎椎体及附件骨质局限性稀疏。1.结合临床，右乳癌术后复发并右侧锁骨上、腋窝、胸肌后方、内乳区淋巴结转移，部分较前(2015-12-4)变化不著，部分较前略进展2.左侧锁骨上区密度增高影，建议观察3.肝转移，较前进展，肝内强化灶，不典型血管瘤不除外，建议MRI检查定性4.左肾囊肿5.胸椎局限性骨质稀疏，变化不著，建议骨扫描定性</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2862,7 +2862,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>双肺纹理增强,右肺小叶间隔增厚、紊乱;双肺内见多发斑片状模糊高密度影,以右肺为著。右肺下叶后基底段可见一结节样高密度影,分叶、毛刺,邻近血管束集,病变大小约为2.51CM×1.78CM,CT值约为23HU。双肺上叶见结节状及索条状高密度影。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。双侧胸膜增厚;两胸腔无积液征象。心脏不大,降主动脉管壁见钙化影,部分钙化斑内移。胸骨、部分胸椎及双侧肋骨见斑片状高密度影。对比2012.6.11CT:1.右肺下叶不规则结节,考虑周围型肺癌,较前相仿;2.双肺散在炎症,右肺为著,右肺间质纤维化;较前相仿;3.双肺上叶陈旧性病变,较前相仿;4.胸骨、部分胸椎及双侧肋骨多发转移,较前相仿;5.降主动脉管壁钙化,部分钙化斑内移,较前变化不大,请随诊。</t>
+          <t>双肺纹理增强，右肺小叶间隔增厚、紊乱；双肺内见多发斑片状模糊高密度影，以右肺为著。右肺下叶后基底段可见一结节样高密度影，分叶、毛刺，邻近血管束集，病变大小约为2.51CM×1.78CM，CT值约为23HU。双肺上叶见结节状及索条状高密度影。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。双侧胸膜增厚；两胸腔无积液征象。心脏不大，降主动脉管壁见钙化影，部分钙化斑内移。胸骨、部分胸椎及双侧肋骨见斑片状高密度影。对比2012.6.11CT：1.右肺下叶不规则结节，考虑周围型肺癌，较前相仿；2.双肺散在炎症，右肺为著，右肺间质纤维化；较前相仿；3.双肺上叶陈旧性病变，较前相仿；4.胸骨、部分胸椎及双侧肋骨多发转移，较前相仿；5.降主动脉管壁钙化，部分钙化斑内移，较前变化不大，请随诊。</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2884,7 +2884,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>右乳外上象限见一软组织密度结节灶,边界欠清,与周围腺体分界不清,截面积约1.2CM×1.3CM;增强扫描呈较显著不均匀强化。左乳未见明确异常。右侧腋窝见肿大淋巴结,大者短径约1.2CM。左侧腋窝见稍大淋巴结,大者短径约0.6CM。双侧内乳区、双肺门及纵隔未见明确肿大淋巴结。双肺野较清晰,未见明确异常密度灶,气管及各级支气管通畅。扫描野内肝顶部见一低密度灶,边界尚清,直径约0.3CM。另于肝右叶见一低密度灶,边缘模糊(图5-53),边缘模糊,直径约0.6CM。1.结合临床,右乳癌并右侧腋窝淋巴结转移2.左侧腋窝小淋巴结3.肝右叶低密度灶,建议MR检查4.肝顶部小低密度灶,考虑囊肿</t>
+          <t>右乳外上象限见一软组织密度结节灶，边界欠清，与周围腺体分界不清，截面积约1.2CM×1.3CM；增强扫描呈较显著不均匀强化。左乳未见明确异常。右侧腋窝见肿大淋巴结，大者短径约1.2CM。左侧腋窝见稍大淋巴结，大者短径约0.6CM。双侧内乳区、双肺门及纵隔未见明确肿大淋巴结。双肺野较清晰，未见明确异常密度灶，气管及各级支气管通畅。扫描野内肝顶部见一低密度灶，边界尚清，直径约0.3CM。另于肝右叶见一低密度灶，边缘模糊(图5-53)，边缘模糊，直径约0.6CM。1.结合临床，右乳癌并右侧腋窝淋巴结转移2.左侧腋窝小淋巴结3.肝右叶低密度灶，建议MR检查4.肝顶部小低密度灶，考虑囊肿</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2906,7 +2906,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>左肺门区及左肺下叶可见巨大团块影,最大截面径约8.41CM,CT值约31HU,左肺下叶支气管截断,肿块周围肺组织见多发斑片影,呈网格状改变,增强扫描肿块不均匀强化,内可见多发血管影,三期CT值约:39-78HU、36-63HU、41-67HU,并见左下肺静脉截断。右肺上叶可见淡片影,边界模糊,双肺上叶、右肺中叶可见多发粟粒影。左上肺钙化灶。纵隔内可见度多发淋巴结影,大者径约1.18CM。两胸腔无积液征象。心脏大小形态未见异常。1.左肺门及左肺下叶肿块,考虑恶性,左肺下叶阻塞性炎症,间质增厚,左下肺静脉受侵可能;纵隔淋巴结增大;2.右肺上叶炎症改变,左上肺钙化灶;3.双肺多发粟粒灶,转移不除外,请结合临床。</t>
+          <t>左肺门区及左肺下叶可见巨大团块影，最大截面径约8.41CM，CT值约31HU，左肺下叶支气管截断，肿块周围肺组织见多发斑片影，呈网格状改变，增强扫描肿块不均匀强化，内可见多发血管影，三期CT值约：39-78HU、36-63HU、41-67HU，并见左下肺静脉截断。右肺上叶可见淡片影，边界模糊，双肺上叶、右肺中叶可见多发粟粒影。左上肺钙化灶。纵隔内可见度多发淋巴结影，大者径约1.18CM。两胸腔无积液征象。心脏大小形态未见异常。1.左肺门及左肺下叶肿块，考虑恶性，左肺下叶阻塞性炎症，间质增厚，左下肺静脉受侵可能；纵隔淋巴结增大；2.右肺上叶炎症改变，左上肺钙化灶；3.双肺多发粟粒灶，转移不除外，请结合临床。</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>双肺纹理增强、紊乱,局部支气管壁增厚,边缘模糊。右肺上叶前段可见类圆形稍高密度影,边缘不规整,可见短毛刺,径约1.58CM,界尚清,平扫CT值约为24HU,增强扫描动脉期CT值约为35HU,静脉期CT值约为40HU,延迟期CT值约为53HU,邻近胸膜增厚、牵拉;右肺叶间胸膜增厚;右肺中下叶内可见条片状稍高密度影,边缘模糊;右肺中下叶另可见多个结节状稍高密度影,径约0.65CM;右侧胸腔可见胸腔积液。左肺上叶舌段可见类圆形无肺纹理的低密度区,界清;纵隔内未见明显肿大淋巴结。主动脉、双侧冠状动脉走行区内可见条状高密度钙化影。1、支气管炎;2、考虑右肺上叶前段周围型肺癌;3、右侧多发小结节,转移不除外,请结合临床;4、右肺中下叶多发索条灶;5、左肺上叶局限性肺大泡;6、双侧胸膜粘连、增厚;7、右侧胸腔积液。</t>
+          <t>双肺纹理增强、紊乱，局部支气管壁增厚，边缘模糊。右肺上叶前段可见类圆形稍高密度影，边缘不规整，可见短毛刺，径约1.58CM，界尚清，平扫CT值约为24HU，增强扫描动脉期CT值约为35HU，静脉期CT值约为40HU，延迟期CT值约为53HU，邻近胸膜增厚、牵拉；右肺叶间胸膜增厚；右肺中下叶内可见条片状稍高密度影，边缘模糊；右肺中下叶另可见多个结节状稍高密度影，径约0.65CM；右侧胸腔可见胸腔积液。左肺上叶舌段可见类圆形无肺纹理的低密度区，界清；纵隔内未见明显肿大淋巴结。主动脉、双侧冠状动脉走行区内可见条状高密度钙化影。1、支气管炎；2、考虑右肺上叶前段周围型肺癌；3、右侧多发小结节，转移不除外，请结合临床；4、右肺中下叶多发索条灶；5、左肺上叶局限性肺大泡；6、双侧胸膜粘连、增厚；7、右侧胸腔积液。</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2950,7 +2950,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>右乳术后缺如,术区未见异常密度灶。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门及纵隔未见肿大淋巴结。左侧内乳区见小淋巴结,短径不足0.5CM。右侧胸膜示多发类结节灶,大者直径不足0.5CM。右肺中叶见一结节灶(图4-24),直径约0.4CM,密度较低。双肺门及纵隔未见肿大淋巴结。双侧胸腔未见积液征象。扫描野内肝实质密度均匀减低。肝内见斑点状钙化灶。胸骨及部分胸椎示骨质破坏。鼻咽、口咽、喉及下咽未见异常。左侧锁骨上区示数个小结节灶,大者短径约1.0CM,密度减低。余双侧颈动脉鞘区见短径不足0.5CM小淋巴结。左侧上颌窦粘膜略增厚。1.结合临床,右乳癌术后改变;右侧胸膜多发结节灶,考虑为胸膜转移,较前(2015-4-7)结节示减少;骨转移,较前部分密度增高;左锁骨上淋巴结肿大,变化不著2.右肺中叶结节灶,变化不著3.脂肪肝,肝内钙化灶4.左侧副鼻窦炎</t>
+          <t>右乳术后缺如，术区未见异常密度灶。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门及纵隔未见肿大淋巴结。左侧内乳区见小淋巴结，短径不足0.5CM。右侧胸膜示多发类结节灶，大者直径不足0.5CM。右肺中叶见一结节灶(图4-24)，直径约0.4CM，密度较低。双肺门及纵隔未见肿大淋巴结。双侧胸腔未见积液征象。扫描野内肝实质密度均匀减低。肝内见斑点状钙化灶。胸骨及部分胸椎示骨质破坏。鼻咽、口咽、喉及下咽未见异常。左侧锁骨上区示数个小结节灶，大者短径约1.0CM，密度减低。余双侧颈动脉鞘区见短径不足0.5CM小淋巴结。左侧上颌窦粘膜略增厚。1.结合临床，右乳癌术后改变；右侧胸膜多发结节灶，考虑为胸膜转移，较前(2015-4-7)结节示减少；骨转移，较前部分密度增高；左锁骨上淋巴结肿大，变化不著2.右肺中叶结节灶，变化不著3.脂肪肝，肝内钙化灶4.左侧副鼻窦炎</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2967,7 +2967,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1.左下肺周围型肺癌,双肺多发小转移灶,对比2012-03-05片,病变明显变小;2.纵隔内、左肺门多发稍大淋巴结,对比前片右腋窝淋巴结变小,余较前变化不大;3.胸椎、左侧肋骨、胸骨及右侧锁骨多发转移,较前变化不大;4.甲状腺占位,腹部改变,请详查。双肺透过度欠均,左下肺可见一肿块影,边界不规则,最大层面3.8CM×2.1CM,CT值约22HU;左肺下叶基底段部分支气管略窄;双肺多发小结节影。两肺门区未见异常。纵隔内、左肺门可见多发稍大的淋巴结,大者短径约0.90CM。两胸腔无积液征象。心脏大血管未见异常。第3胸椎左侧横突、第4、5、7、8、10胸椎椎体内可见结节状高密度影,第11胸椎椎体骨质密度不均匀减低,左侧第4、5、7后肋骨质密度增高。甲状腺左叶见类圆形低密度影,边界欠清,大小约为0.9CM,CT值约为26HU。肝右叶多发低密度灶,右侧肾上腺区可见软组织密度影。</t>
+          <t>1.左下肺周围型肺癌，双肺多发小转移灶，对比2012-03-05片，病变明显变小；2.纵隔内、左肺门多发稍大淋巴结，对比前片右腋窝淋巴结变小，余较前变化不大；3.胸椎、左侧肋骨、胸骨及右侧锁骨多发转移，较前变化不大；4.甲状腺占位，腹部改变，请详查。双肺透过度欠均，左下肺可见一肿块影，边界不规则，最大层面3.8CM×2.1CM，CT值约22HU；左肺下叶基底段部分支气管略窄；双肺多发小结节影。两肺门区未见异常。纵隔内、左肺门可见多发稍大的淋巴结，大者短径约0.90CM。两胸腔无积液征象。心脏大血管未见异常。第3胸椎左侧横突、第4、5、7、8、10胸椎椎体内可见结节状高密度影，第11胸椎椎体骨质密度不均匀减低，左侧第4、5、7后肋骨质密度增高。甲状腺左叶见类圆形低密度影，边界欠清，大小约为0.9CM，CT值约为26HU。肝右叶多发低密度灶，右侧肾上腺区可见软组织密度影。</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2989,7 +2989,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>左肺肋胸膜、膈胸膜、斜裂胸膜均明显增厚,最厚约2.09CM,CT值约40HU,增强扫描后3期CT值分别约59HU、65HU、71HU。两肺见多发大小不等高密度影,部分呈磨玻璃密度改变,大者约1.66CM×1.21CM。两肺纹理增强。两肺门区未见异常。所示气管支气管影正常。纵隔内见多发淋巴结影。两胸腔无积液征象。主动脉管壁见钙化影。胸3椎体见结节样致密影。左肺胸膜病变,考虑恶性间皮瘤伴双肺多发转移,纵隔淋巴结转移,较2011.04.19片比较病变进展;胸3椎体转移灶。</t>
+          <t>左肺肋胸膜、膈胸膜、斜裂胸膜均明显增厚，最厚约2.09CM，CT值约40HU，增强扫描后3期CT值分别约59HU、65HU、71HU。两肺见多发大小不等高密度影，部分呈磨玻璃密度改变，大者约1.66CM×1.21CM。两肺纹理增强。两肺门区未见异常。所示气管支气管影正常。纵隔内见多发淋巴结影。两胸腔无积液征象。主动脉管壁见钙化影。胸3椎体见结节样致密影。左肺胸膜病变，考虑恶性间皮瘤伴双肺多发转移，纵隔淋巴结转移，较2011.04.19片比较病变进展；胸3椎体转移灶。</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3011,7 +3011,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1、左肺上叶前段肿物,考虑肺癌可能大;2、双肺内多发结节影,考虑肺转移;右侧第3肋骨骨转移可能;3、肺气肿征象;左肺上叶前段间质性改变;双侧胸膜增厚;4、纵隔淋巴结大,请结合临床。双肺肺野透过度减低。双肺内见多发大小不等不规则透亮影。双肺内见多发结节影。左肺上叶前段呈网格状改变,并可见团块状软组织密度影,范围约6.5CM×4.4CM,CT平扫33HU,边缘见毛刺影。纵隔内见异常增大的淋巴结,短径约1.1CM。双侧胸膜增厚。两胸腔无积液征象。心包积液征象。右侧第3肋骨骨质破坏。</t>
+          <t>1、左肺上叶前段肿物，考虑肺癌可能大；2、双肺内多发结节影，考虑肺转移；右侧第3肋骨骨转移可能；3、肺气肿征象；左肺上叶前段间质性改变；双侧胸膜增厚；4、纵隔淋巴结大，请结合临床。双肺肺野透过度减低。双肺内见多发大小不等不规则透亮影。双肺内见多发结节影。左肺上叶前段呈网格状改变，并可见团块状软组织密度影，范围约6.5CM×4.4CM，CT平扫33HU，边缘见毛刺影。纵隔内见异常增大的淋巴结，短径约1.1CM。双侧胸膜增厚。两胸腔无积液征象。心包积液征象。右侧第3肋骨骨质破坏。</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3033,7 +3033,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>右肺上叶可见团块影,大小约为3.6CM×4.6CM,呈分叶状,CT值约为34HU,周围可见棘状突起,周围并可见多发小结节状、斑点状高密度影,右侧支气管管壁增厚,管腔变窄,肿块与右肺动静脉、上腔静脉关系密切。两肺纹理清晰。两肺门区未见异常。纵隔内增大的淋巴结影,径约2.0CM。两胸腔无积液征象。心脏大血管未见异常。1.右肺上叶中心型肺癌,右侧主支气管受累,与右肺动静脉、上腔静脉关系密切,受侵可能性大,建议进一步详查;2.纵隔淋巴结转移。</t>
+          <t>右肺上叶可见团块影，大小约为3.6CM×4.6CM，呈分叶状，CT值约为34HU，周围可见棘状突起，周围并可见多发小结节状、斑点状高密度影，右侧支气管管壁增厚，管腔变窄，肿块与右肺动静脉、上腔静脉关系密切。两肺纹理清晰。两肺门区未见异常。纵隔内增大的淋巴结影，径约2.0CM。两胸腔无积液征象。心脏大血管未见异常。1.右肺上叶中心型肺癌，右侧主支气管受累，与右肺动静脉、上腔静脉关系密切，受侵可能性大，建议进一步详查；2.纵隔淋巴结转移。</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3055,7 +3055,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>右肺下叶见片状肿块影,CT值约26HU,边界欠清,大小约4.8CM×2.7CM,呈分叶状,边缘可见毛刺,邻近胸膜凹陷,右肺下叶部分支气管远端截断。双肺见多发小结节影,边界清晰,大者径约0.8CM;两肺门区未见异常。纵隔见增大淋巴结影,大者径约1.43CM。两胸腔无积液征象。主动脉、冠状动脉管壁钙化。第3胸椎右侧横突内可见类圆形高密度影。第8胸椎骨质不规整,其内可见斑片状高密度影。部分胸椎内见金属固定物影。左侧腋窝见稍大淋巴结影。1.右肺下叶肺癌,较(2016-05-16)CT相仿;2.双肺多发小结节,较前部分结节为新发,部分增大;3.纵隔内多发增大淋巴结,较前略增大,考虑新发,左腋窝稍大淋巴结,请结合临床;4.第3胸椎右侧横突高密度灶,较前相仿;第8胸椎骨质破坏,较前相仿,考虑转移;部分胸椎术后改变。</t>
+          <t>右肺下叶见片状肿块影，CT值约26HU，边界欠清，大小约4.8CM×2.7CM，呈分叶状，边缘可见毛刺，邻近胸膜凹陷，右肺下叶部分支气管远端截断。双肺见多发小结节影，边界清晰，大者径约0.8CM；两肺门区未见异常。纵隔见增大淋巴结影，大者径约1.43CM。两胸腔无积液征象。主动脉、冠状动脉管壁钙化。第3胸椎右侧横突内可见类圆形高密度影。第8胸椎骨质不规整，其内可见斑片状高密度影。部分胸椎内见金属固定物影。左侧腋窝见稍大淋巴结影。1.右肺下叶肺癌，较(2016-05-16)CT相仿；2.双肺多发小结节，较前部分结节为新发，部分增大；3.纵隔内多发增大淋巴结，较前略增大，考虑新发，左腋窝稍大淋巴结，请结合临床；4.第3胸椎右侧横突高密度灶，较前相仿；第8胸椎骨质破坏，较前相仿，考虑转移；部分胸椎术后改变。</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3077,7 +3077,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>右肺门区见团块影,与周围组织分界不清,大小约3.8CM×2.8CM,平扫CT值约46HU,增强三期分别为61HU、71HU、70HU,肿块包绕右侧支气管,右侧支气管及其近端分支受压,右肺下叶见斑点状模糊影;右肺(50、45、42、37、35、31、28、26、20)及左肺(54、48、47、44、38、35、34、31、30、24)见多发结节影,界清,大者位于左肺上叶前段(54),径约0.8CM;两肺尖见多发囊状透亮区。两肺门区未见异常。所示气管支气管影通畅。纵隔内见多发肿大淋巴结,大者短径约1.5CM。两胸腔未见积液征象。心脏不大,冠脉及大血管走行区见致密影。1.右肺门区团块,考虑恶性可能,伴右肺下叶阻塞性肺炎;两肺多发结节,转移瘤可能;纵隔淋巴结增大,请结合临床详查除外其他可能;2.两肺间隔旁肺气肿。</t>
+          <t>右肺门区见团块影，与周围组织分界不清，大小约3.8CM×2.8CM，平扫CT值约46HU，增强三期分别为61HU、71HU、70HU，肿块包绕右侧支气管，右侧支气管及其近端分支受压，右肺下叶见斑点状模糊影；右肺(50、45、42、37、35、31、28、26、20)及左肺(54、48、47、44、38、35、34、31、30、24)见多发结节影，界清，大者位于左肺上叶前段(54)，径约0.8CM；两肺尖见多发囊状透亮区。两肺门区未见异常。所示气管支气管影通畅。纵隔内见多发肿大淋巴结，大者短径约1.5CM。两胸腔未见积液征象。心脏不大，冠脉及大血管走行区见致密影。1.右肺门区团块，考虑恶性可能，伴右肺下叶阻塞性肺炎；两肺多发结节，转移瘤可能；纵隔淋巴结增大，请结合临床详查除外其他可能；2.两肺间隔旁肺气肿。</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3099,7 +3099,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>右肺下叶背段(23)粟粒影。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。两胸腔未见积液征象。主动脉壁及冠脉壁见弧形高密度影。右乳内见两枚团块影,边界尚清,大者径约3.8CM,CT值约40HU;右侧腋窝多发增大淋巴结,短径约1.2CM,CT值约40HU;左乳内见致密点。所示肝内密度不均。1.右肺下叶粟粒灶;2.右乳腺癌,右侧腋窝淋巴结转移,左乳内钙化灶,请结合相关检查;3.所示肝内密度不均,请详查。</t>
+          <t>右肺下叶背段(23)粟粒影。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。两胸腔未见积液征象。主动脉壁及冠脉壁见弧形高密度影。右乳内见两枚团块影，边界尚清，大者径约3.8CM，CT值约40HU；右侧腋窝多发增大淋巴结，短径约1.2CM，CT值约40HU；左乳内见致密点。所示肝内密度不均。1.右肺下叶粟粒灶；2.右乳腺癌，右侧腋窝淋巴结转移，左乳内钙化灶，请结合相关检查；3.所示肝内密度不均，请详查。</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3121,7 +3121,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>左肺下叶外基底段可见团块影,边界模糊,可见呈浅分叶,周围可见短毛刺,邻近胸膜牵拉凹陷,最大截面大小约6.31CM×4.64CM,CT值约25HU,左肺下叶外基底段支气管局部阻塞。右肺上叶后段、双肺下叶背段(S31、33)、双肺下叶内基底段(S45)多发结节影,边界模糊,大者径约0.42CM。左肺上叶外基底段可见致密影。两肺门区未见异常。纵隔内可见稍大的淋巴结,左侧肺门可见钙化淋巴结。两胸腔无积液征象。心脏大血管未见异常。胸10、11椎体内可见片状低密度影。对比前片(2012-08-31):1.左肺周围型肺癌,较前肿块增大;2.双肺多发小结节,较前相仿,转移不除外;3.左肺上叶外基底段钙化灶;4.胸10、11椎体片状低密度影,建议ECT检查除外转移。</t>
+          <t>左肺下叶外基底段可见团块影，边界模糊，可见呈浅分叶，周围可见短毛刺，邻近胸膜牵拉凹陷，最大截面大小约6.31CM×4.64CM，CT值约25HU，左肺下叶外基底段支气管局部阻塞。右肺上叶后段、双肺下叶背段(S31、33)、双肺下叶内基底段(S45)多发结节影，边界模糊，大者径约0.42CM。左肺上叶外基底段可见致密影。两肺门区未见异常。纵隔内可见稍大的淋巴结，左侧肺门可见钙化淋巴结。两胸腔无积液征象。心脏大血管未见异常。胸10、11椎体内可见片状低密度影。对比前片(2012-08-31)：1.左肺周围型肺癌，较前肿块增大；2.双肺多发小结节，较前相仿，转移不除外；3.左肺上叶外基底段钙化灶；4.胸10、11椎体片状低密度影，建议ECT检查除外转移。</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3143,7 +3143,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>双肺纹理稀疏,可见多发含气透亮影。右肺尖可见斑片状高密度影,边缘可见细毛刺,大小约为3.09CM×1.75CM,CT值约52HU;右肺上叶支气管狭窄,右肺门区见肿块影。左肺上叶舌段及左肺下叶內基底段可见片状高密度影。双肺可见多发小结节影。右肺下叶外基底段可见一点状钙化影。纵隔内可见多发增大的淋巴结;双胸腔无积液征象,双侧胸膜增厚。心脏大血管钙化斑。部分椎体及肋骨、胸骨可见多发斑片状致密影。双肾多发囊状液性密度影;肝内小低密度灶。1.右肺门肿块,考虑肺癌可能;2.双肺多发病变,纵隔淋巴结肿大,随诊;3.慢支、肺气肿征象,双侧胸膜增厚;4.心包增厚;5.部分椎体及肋骨、胸骨转移;以上对比2012.04.26前片,未见明显变化。</t>
+          <t>双肺纹理稀疏，可见多发含气透亮影。右肺尖可见斑片状高密度影，边缘可见细毛刺，大小约为3.09CM×1.75CM，CT值约52HU；右肺上叶支气管狭窄，右肺门区见肿块影。左肺上叶舌段及左肺下叶內基底段可见片状高密度影。双肺可见多发小结节影。右肺下叶外基底段可见一点状钙化影。纵隔内可见多发增大的淋巴结；双胸腔无积液征象，双侧胸膜增厚。心脏大血管钙化斑。部分椎体及肋骨、胸骨可见多发斑片状致密影。双肾多发囊状液性密度影；肝内小低密度灶。1.右肺门肿块，考虑肺癌可能；2.双肺多发病变，纵隔淋巴结肿大，随诊；3.慢支、肺气肿征象，双侧胸膜增厚；4.心包增厚；5.部分椎体及肋骨、胸骨转移；以上对比2012.04.26前片，未见明显变化。</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3160,7 +3160,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1.左下肺周围型肺癌,双肺多发转移;2.纵隔内、左肺门及右侧腋窝处多发淋巴结肿大;3.第4、8、11胸椎椎体转移,左侧第5、7后肋转移;4.甲状腺占位,请详查;5.肝右叶多发低密度灶,双侧肾上腺区软组织密度影,转移可能性大,请详查。左下肺可见一肿块影,边界不规则,最大层面4.67CM×4.37CM,CT值约21-46HU;左肺下叶基底段部分支气管略窄;双肺多发大小不等之结节影;双肺透光度不均匀。两肺门区未见异常。纵隔内、左肺门及右侧腋窝处可见多发增大的淋巴结,大者短径约1.30CM。两胸腔无积液征象。心脏大血管未见异常。第4、8胸椎椎体内可见结节状高密度影,第11胸椎椎体骨质密度不均匀减低,左侧第5、7后肋骨质密度增高。甲状腺左叶见类圆形低密度影,边界欠清,大小约为0.9CM×0.7CM,CT值约为26HU。肝右叶多发低密度灶,双侧肾上腺区可见软组织密度影。</t>
+          <t>1.左下肺周围型肺癌，双肺多发转移；2.纵隔内、左肺门及右侧腋窝处多发淋巴结肿大；3.第4、8、11胸椎椎体转移，左侧第5、7后肋转移；4.甲状腺占位，请详查；5.肝右叶多发低密度灶，双侧肾上腺区软组织密度影，转移可能性大，请详查。左下肺可见一肿块影，边界不规则，最大层面4.67CM×4.37CM，CT值约21-46HU；左肺下叶基底段部分支气管略窄；双肺多发大小不等之结节影；双肺透光度不均匀。两肺门区未见异常。纵隔内、左肺门及右侧腋窝处可见多发增大的淋巴结，大者短径约1.30CM。两胸腔无积液征象。心脏大血管未见异常。第4、8胸椎椎体内可见结节状高密度影，第11胸椎椎体骨质密度不均匀减低，左侧第5、7后肋骨质密度增高。甲状腺左叶见类圆形低密度影，边界欠清，大小约为0.9CM×0.7CM，CT值约为26HU。肝右叶多发低密度灶，双侧肾上腺区可见软组织密度影。</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3182,7 +3182,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1.考虑右肺上叶肺癌并双肺多发转移,较2015-1-6进展,双侧胸膜受累可能性大;2.左肺上叶炎症,较前进展;3.双侧胸腔积液,较前增多;4.纵隔淋巴结肿大,较前新发。右肺上叶纵隔旁可见肿块影,边缘呈分叶状,可见毛刺,大小约3.6CM×4.2CM,平扫CT值约27HU,增强扫描三期CT值约55HU、78HU、75HU;双肺\"雪花状\"弥漫分布斑片状与结节状高密度影;左肺上叶斑片状模糊影。纵隔内可见肿大淋巴结影,大者大小约2.8CM×1.5CM,增强扫描呈轻中度强化。两胸腔可见弧形液体密度影,双侧胸膜局部不规则增厚。</t>
+          <t>1.考虑右肺上叶肺癌并双肺多发转移，较2015-1-6进展，双侧胸膜受累可能性大；2.左肺上叶炎症，较前进展；3.双侧胸腔积液，较前增多；4.纵隔淋巴结肿大，较前新发。右肺上叶纵隔旁可见肿块影，边缘呈分叶状，可见毛刺，大小约3.6CM×4.2CM，平扫CT值约27HU，增强扫描三期CT值约55HU、78HU、75HU；双肺\"雪花状\"弥漫分布斑片状与结节状高密度影；左肺上叶斑片状模糊影。纵隔内可见肿大淋巴结影，大者大小约2.8CM×1.5CM，增强扫描呈轻中度强化。两胸腔可见弧形液体密度影，双侧胸膜局部不规则增厚。</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3204,7 +3204,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1.左肺上叶舌段病变,考虑周围型肺癌,较外院2011.04.26CT(1460749)前片稍增大;右肺上叶前段索条影;2.双肺多发结节,转移?较前片增多、增大,请结合临床;3.纵隔淋巴结增大;下位胸椎致密影;4.左侧乳腺缺如。左肺上叶舌段斑片影,边缘模糊,大小约3.33CM×1.84CM,邻近斜裂明显牵拉凹陷;右肺上叶前段、可见索条影。双肺多发小结节影,大者径约0.58CM。两肺门区未见异常。所示气管支气管影正常。纵隔内可见增大的淋巴结,大者短径约1.02CM。两胸腔无积液征象。心脏大血管未见异常。左侧乳腺缺如。下位胸椎可见致密影。</t>
+          <t>1.左肺上叶舌段病变，考虑周围型肺癌，较外院2011.04.26CT(1460749)前片稍增大；右肺上叶前段索条影；2.双肺多发结节，转移?较前片增多、增大，请结合临床；3.纵隔淋巴结增大；下位胸椎致密影；4.左侧乳腺缺如。左肺上叶舌段斑片影，边缘模糊，大小约3.33CM×1.84CM，邻近斜裂明显牵拉凹陷；右肺上叶前段、可见索条影。双肺多发小结节影，大者径约0.58CM。两肺门区未见异常。所示气管支气管影正常。纵隔内可见增大的淋巴结，大者短径约1.02CM。两胸腔无积液征象。心脏大血管未见异常。左侧乳腺缺如。下位胸椎可见致密影。</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3226,7 +3226,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1.双肺间质性改变;右侧少量胸腔积液;双肺粟粒灶,随诊;2.右肺中叶索条灶,慢性炎症可能;3.右侧乳腺肿物,考虑为恶性病变,较2016-07-11CT片增大;4.右侧第7后肋、第4胸椎骨质破坏,转移瘤可能性大,较前相仿,请结合临床;5.右侧多发肋骨骨折。双肺纹理增强,紊乱。右肺中叶可见高密度索条影,边缘模糊不清。右肺上叶(44、40、37)、左肺上叶(24)粟粒灶。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。右胸腔少量积液征象。心脏大血管未见异常。所示右侧乳腺见较大肿物,密度不均,大小为5.40CM×4.82CM,CT值约43HU。右侧第7后肋欠规整;第4胸椎骨质破坏,边缘模糊。右侧多根肋骨骨质连续性中断。</t>
+          <t>1.双肺间质性改变；右侧少量胸腔积液；双肺粟粒灶，随诊；2.右肺中叶索条灶，慢性炎症可能；3.右侧乳腺肿物，考虑为恶性病变，较2016-07-11CT片增大；4.右侧第7后肋、第4胸椎骨质破坏，转移瘤可能性大，较前相仿，请结合临床；5.右侧多发肋骨骨折。双肺纹理增强，紊乱。右肺中叶可见高密度索条影，边缘模糊不清。右肺上叶(44、40、37)、左肺上叶(24)粟粒灶。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。右胸腔少量积液征象。心脏大血管未见异常。所示右侧乳腺见较大肿物，密度不均，大小为5.40CM×4.82CM，CT值约43HU。右侧第7后肋欠规整；第4胸椎骨质破坏，边缘模糊。右侧多根肋骨骨质连续性中断。</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3248,7 +3248,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1.左乳癌术后复发并左腋窝多发淋巴结转移2.左肺上叶结节灶,建议观察3.上腹部及颈部扫描未见明显异常左乳术后缺如,部分胸肌存在,术区皮肤及软组织增厚,增强后呈较显著不均匀强化;左侧腋窝术后,可见多发肿大淋巴结,大者短径约2.0CM,可见较显著强化。右乳及右侧腋窝未见明确异常。左肺上叶胸膜下可见类结节灶,直径约0.5CM;余双侧肺野清晰,肺纹理正常,肺内未见实质性病变影。双侧各叶、段支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。胸腔内未见积液。胸廓诸骨未见骨质破坏。肝脏形态、大小可,实质内未见异常。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺及双肾形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。鼻咽、口咽及喉形态可,诸壁不厚。双侧副鼻窦充气良好。甲状腺双侧叶形态大小密度可。双颈部肌间隙清晰,未见明显肿大淋巴结。</t>
+          <t>1.左乳癌术后复发并左腋窝多发淋巴结转移2.左肺上叶结节灶，建议观察3.上腹部及颈部扫描未见明显异常左乳术后缺如，部分胸肌存在，术区皮肤及软组织增厚，增强后呈较显著不均匀强化；左侧腋窝术后，可见多发肿大淋巴结，大者短径约2.0CM，可见较显著强化。右乳及右侧腋窝未见明确异常。左肺上叶胸膜下可见类结节灶，直径约0.5CM；余双侧肺野清晰，肺纹理正常，肺内未见实质性病变影。双侧各叶、段支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。胸腔内未见积液。胸廓诸骨未见骨质破坏。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及双肾形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。鼻咽、口咽及喉形态可，诸壁不厚。双侧副鼻窦充气良好。甲状腺双侧叶形态大小密度可。双颈部肌间隙清晰，未见明显肿大淋巴结。</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3265,7 +3265,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>双乳腺体丰富,左乳外侧象限见片状及结节状软组织密度影,相互融合呈肿块状,边缘模糊,最大截面积约2.6CM×3.5CM;增强扫描呈中度强化。左乳皮肤示增厚。左侧乳头未见明显内陷。右乳未见明确异常密度灶。左侧腋窝见多发肿大淋巴结,大者短径约1.6CM。右侧腋窝见增大淋巴结,大者短径约0.8CM。双侧内乳区及双肺门未见明确肿大淋巴结,纵隔内右上气管旁见短径约0.5CM的小淋巴结。另于纵隔内心包右旁见低密度影,边界较清,密度较低,未见强化,考虑为心包上隐窝。双肺野较清晰,未见明确异常密度灶。脑实质密度正常,未见明显异常密度灶。脑室、池无扩张,中线结构居中,颅骨诸骨质未见破坏。1.左乳占位,结合临床,考虑乳腺癌;左侧腋窝淋巴结转移2.右侧腋窝淋巴结肿大3.颅脑扫描未见异常</t>
+          <t>双乳腺体丰富，左乳外侧象限见片状及结节状软组织密度影，相互融合呈肿块状，边缘模糊，最大截面积约2.6CM×3.5CM；增强扫描呈中度强化。左乳皮肤示增厚。左侧乳头未见明显内陷。右乳未见明确异常密度灶。左侧腋窝见多发肿大淋巴结，大者短径约1.6CM。右侧腋窝见增大淋巴结，大者短径约0.8CM。双侧内乳区及双肺门未见明确肿大淋巴结，纵隔内右上气管旁见短径约0.5CM的小淋巴结。另于纵隔内心包右旁见低密度影，边界较清，密度较低，未见强化，考虑为心包上隐窝。双肺野较清晰，未见明确异常密度灶。脑实质密度正常，未见明显异常密度灶。脑室、池无扩张，中线结构居中，颅骨诸骨质未见破坏。1.左乳占位，结合临床，考虑乳腺癌；左侧腋窝淋巴结转移2.右侧腋窝淋巴结肿大3.颅脑扫描未见异常</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3287,7 +3287,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1.左肺下叶肺癌,较前2016-03-22CT相仿;原双肺多发结节,较前数量减少;右侧胸水已吸收;2.双肺散在索条灶;3.左侧肩胛骨、部分肋骨、胸椎及附件转移,请结合临床。左肺下叶可见团块影,较大截面大小约3.5CM×2.5CM,CT值约为52HU,边界尚清,浅分叶状,周围可见斑片状稍高密度影。右肺中叶可见小结节影,径约0.41CM。双肺可见散在索条影。两肺门区未见异常。纵隔内未见淋巴结增大。双侧胸腔未见积液。心脏大血管未见异常。左侧肩胛骨、双侧部分肋骨、胸椎及附件形态欠规整,可见骨质破坏区。</t>
+          <t>1.左肺下叶肺癌，较前2016-03-22CT相仿；原双肺多发结节，较前数量减少；右侧胸水已吸收；2.双肺散在索条灶；3.左侧肩胛骨、部分肋骨、胸椎及附件转移，请结合临床。左肺下叶可见团块影，较大截面大小约3.5CM×2.5CM，CT值约为52HU，边界尚清，浅分叶状，周围可见斑片状稍高密度影。右肺中叶可见小结节影，径约0.41CM。双肺可见散在索条影。两肺门区未见异常。纵隔内未见淋巴结增大。双侧胸腔未见积液。心脏大血管未见异常。左侧肩胛骨、双侧部分肋骨、胸椎及附件形态欠规整，可见骨质破坏区。</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3309,7 +3309,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>左肺体积减小,部分肺组织及支气管缺如,纵隔左偏;左残肺近纵隔旁见肿块影及线样致密影,边缘呈分叶征,其内可见截断支气管影,肿块最大截面约为5.1CM×2.6CM,CT值约为49HU,邻近胸膜增厚。双肺多发结节影,大者径约1.2CM。两胸腔无积液征象。主动脉及冠状动脉走行区可见条形钙化影。左第5前侧肋骨及下位胸椎多发密度增高。1.左肺术后,左残肺肿块,考虑复发可能,较2015.12.10CT增大;2.双肺多发转移瘤,较前明显增多、增大;3.左侧第5前肋及下位胸椎多发密度增高,考虑转移。</t>
+          <t>左肺体积减小，部分肺组织及支气管缺如，纵隔左偏；左残肺近纵隔旁见肿块影及线样致密影，边缘呈分叶征，其内可见截断支气管影，肿块最大截面约为5.1CM×2.6CM，CT值约为49HU，邻近胸膜增厚。双肺多发结节影，大者径约1.2CM。两胸腔无积液征象。主动脉及冠状动脉走行区可见条形钙化影。左第5前侧肋骨及下位胸椎多发密度增高。1.左肺术后，左残肺肿块，考虑复发可能，较2015.12.10CT增大；2.双肺多发转移瘤，较前明显增多、增大；3.左侧第5前肋及下位胸椎多发密度增高，考虑转移。</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3331,7 +3331,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>左乳外上象限可见圆形团块影,大小约为1.58CM×1.66CM,边界清晰,邻近皮肤略牵拉凹陷。左侧腋窝可见增大淋巴结影,直径约为1.76CM,边界尚清。右肺上叶后段可见结节影,直径约为0.5CM,中心可见透亮影。两肺支气管血管束欠清。两肺门区未见异常。纵隔内未见异常增大的淋巴结。双侧胸膜局限性增厚,部分钙化。双侧胸腔无积液征象。主动脉、冠脉可见条状钙化。所示部分胸椎密度欠均。1、左乳外上象限肿块,考虑乳腺癌,左侧腋窝淋巴结转移,肝脏两枚低密度病灶不除外转移,详查;2、右肺上叶后段结节,请随诊;3、双侧胸膜局限性增厚钙化;4、所示部分胸椎密度欠均。</t>
+          <t>左乳外上象限可见圆形团块影，大小约为1.58CM×1.66CM，边界清晰，邻近皮肤略牵拉凹陷。左侧腋窝可见增大淋巴结影，直径约为1.76CM，边界尚清。右肺上叶后段可见结节影，直径约为0.5CM，中心可见透亮影。两肺支气管血管束欠清。两肺门区未见异常。纵隔内未见异常增大的淋巴结。双侧胸膜局限性增厚，部分钙化。双侧胸腔无积液征象。主动脉、冠脉可见条状钙化。所示部分胸椎密度欠均。1、左乳外上象限肿块，考虑乳腺癌，左侧腋窝淋巴结转移，肝脏两枚低密度病灶不除外转移，详查；2、右肺上叶后段结节，请随诊；3、双侧胸膜局限性增厚钙化；4、所示部分胸椎密度欠均。</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3353,7 +3353,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1.右肺下叶肺癌,较(2016-02-17)CT增大;2.双肺多发小结节,部分病灶较前略增大;右肺下叶胸膜下小结节较前新发;3.前上纵隔结节,较前相仿;4.纵隔内多发增大淋巴结,转移不除外,左腋窝稍大淋巴结,请结合临床;5.第3胸椎右侧横突高密度灶,较前相仿;第8胸椎骨质破坏,较前相仿,考虑转移;部分胸椎术后改变。右肺下叶见片状肿块影,CT值约26HU,边界欠清,大小约4.7CM×2.7CM,呈分叶状,边缘可见毛刺,邻近胸膜凹陷。左肺叶(S28、36)、右肺(36、39、45、48)、中叶(31、34、36)、下叶胸膜下(19)及左肺下叶外侧底段(S30)见多发小结节影,边界清晰,大者径约0.7CM;两肺门区未见异常。前上纵隔可见结节影,径约1.0CM,CT值约38HU。纵隔见增大淋巴结影,大者径约1.43CM。两胸腔无积液征象。主动脉、冠状动脉管壁钙化。第3胸椎右侧横突内可见类圆形高密度影。第8胸椎骨质不规整,其内可见斑片状高密度影。部分胸椎内见金属固定物影。左侧腋窝见稍大淋巴结影。</t>
+          <t>1.右肺下叶肺癌，较(2016-02-17)CT增大；2.双肺多发小结节，部分病灶较前略增大；右肺下叶胸膜下小结节较前新发；3.前上纵隔结节，较前相仿；4.纵隔内多发增大淋巴结，转移不除外，左腋窝稍大淋巴结，请结合临床；5.第3胸椎右侧横突高密度灶，较前相仿；第8胸椎骨质破坏，较前相仿，考虑转移；部分胸椎术后改变。右肺下叶见片状肿块影，CT值约26HU，边界欠清，大小约4.7CM×2.7CM，呈分叶状，边缘可见毛刺，邻近胸膜凹陷。左肺叶(S28、36)、右肺(36、39、45、48)、中叶(31、34、36)、下叶胸膜下(19)及左肺下叶外侧底段(S30)见多发小结节影，边界清晰，大者径约0.7CM；两肺门区未见异常。前上纵隔可见结节影，径约1.0CM，CT值约38HU。纵隔见增大淋巴结影，大者径约1.43CM。两胸腔无积液征象。主动脉、冠状动脉管壁钙化。第3胸椎右侧横突内可见类圆形高密度影。第8胸椎骨质不规整，其内可见斑片状高密度影。部分胸椎内见金属固定物影。左侧腋窝见稍大淋巴结影。</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3375,7 +3375,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>右侧胸膜局限性增厚,右肺下叶可见大小约8.4CM×5.2CM的团块状高密度影,CT值为39HU,相邻肋骨未见明显骨质破坏。右肺上叶可见多发囊状透亮影。左肺下叶近斜裂处可见结节影,径约0.5CM。右肺门及纵隔内可见多发增大淋巴结影,大者短径约1.2CM。右侧部分肋骨可见高密度致密影。心影不大,心包局部增厚,可见液性密度影。1.右肺下叶占位,考虑恶性伴右肺门及纵隔淋巴结转移可能大;2.右肺上叶局限性肺气肿、肺大泡;3.左肺下叶近斜裂处结节,随诊;4.右侧胸膜增厚,心包少量积液;5.右侧部分肋骨点状致密影,请结合临床除外转移。</t>
+          <t>右侧胸膜局限性增厚，右肺下叶可见大小约8.4CM×5.2CM的团块状高密度影，CT值为39HU，相邻肋骨未见明显骨质破坏。右肺上叶可见多发囊状透亮影。左肺下叶近斜裂处可见结节影，径约0.5CM。右肺门及纵隔内可见多发增大淋巴结影，大者短径约1.2CM。右侧部分肋骨可见高密度致密影。心影不大，心包局部增厚，可见液性密度影。1.右肺下叶占位，考虑恶性伴右肺门及纵隔淋巴结转移可能大；2.右肺上叶局限性肺气肿、肺大泡；3.左肺下叶近斜裂处结节，随诊；4.右侧胸膜增厚，心包少量积液；5.右侧部分肋骨点状致密影，请结合临床除外转移。</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3397,7 +3397,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>左肺门增大,可见团块影,最大层面大小约2.91CM×2.45CM,CT值约42HU,病变与周围组织分界欠清;左肺支气管受压变窄。左肺下叶见斑片影,边界模糊。两胸腔无积液征象。纵隔淋巴结增大,大者短径约1.96CM。右锁骨上淋巴结增大,大者短径约1.17CM。左肺中央型肺癌,纵隔及右锁骨上淋巴结转移,对比2013-5-7CT,可见左肺肿块较前变小,纵隔与右锁骨上淋巴结较前略小;左肺下叶阻塞性肺炎,较前病变范围无缩小。</t>
+          <t>左肺门增大，可见团块影，最大层面大小约2.91CM×2.45CM，CT值约42HU，病变与周围组织分界欠清；左肺支气管受压变窄。左肺下叶见斑片影，边界模糊。两胸腔无积液征象。纵隔淋巴结增大，大者短径约1.96CM。右锁骨上淋巴结增大，大者短径约1.17CM。左肺中央型肺癌，纵隔及右锁骨上淋巴结转移，对比2013-5-7CT，可见左肺肿块较前变小，纵隔与右锁骨上淋巴结较前略小；左肺下叶阻塞性肺炎，较前病变范围无缩小。</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3419,7 +3419,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>右上肺门区见团块状软组织密度影,密度不均,CT值27-32HU,大小约5.15CM×6.34CM,右上叶支气管中断狭窄,右肺上叶见斑片状高密度影,边界模糊;左肺舌叶亦见斑片状高密度影,左肺舌段支气管管腔不规则变细;双肺透光度不均,右中肺见泡状低密度影。右上肺可见小结节影;纵隔内见多发增大淋巴结,部分融合呈团块状;双侧胸腔内见少量积液征象。心脏不大,主动脉瓣区见斑状钙化。所示肝脏内见多发团片状低密度区。双侧肾上腺见软组织团块影。1.右上肺中心型肺癌伴阻塞性肺炎,纵隔淋巴结广泛转移;2.左肺舌段支气管变窄、变细,左肺舌段斑片影,较2011-02-23CT略明显,考虑阻塞性病变,请详查;3.肺气肿,肺大泡;右肺上叶小结节,随诊。4.双侧胸腔积液;5.肝脏多发病变,双侧肾上腺软组织团块,考虑转移,请结合临床详查。</t>
+          <t>右上肺门区见团块状软组织密度影，密度不均，CT值27-32HU，大小约5.15CM×6.34CM，右上叶支气管中断狭窄，右肺上叶见斑片状高密度影，边界模糊；左肺舌叶亦见斑片状高密度影，左肺舌段支气管管腔不规则变细；双肺透光度不均，右中肺见泡状低密度影。右上肺可见小结节影；纵隔内见多发增大淋巴结，部分融合呈团块状；双侧胸腔内见少量积液征象。心脏不大，主动脉瓣区见斑状钙化。所示肝脏内见多发团片状低密度区。双侧肾上腺见软组织团块影。1.右上肺中心型肺癌伴阻塞性肺炎，纵隔淋巴结广泛转移；2.左肺舌段支气管变窄、变细，左肺舌段斑片影，较2011-02-23CT略明显，考虑阻塞性病变，请详查；3.肺气肿，肺大泡；右肺上叶小结节，随诊。4.双侧胸腔积液；5.肝脏多发病变，双侧肾上腺软组织团块，考虑转移，请结合临床详查。</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3441,7 +3441,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>右肺门增大,与右肺门及纵隔内增大淋巴结分界欠清,最大截面大小约3.48CM×1.54CM,CT值约23HU,增强三期CT值分别约67、50、55HU。右肺上叶、中间段支气管狭窄,右肺上叶见片状高密度影。上腔静脉后部管壁略受侵。纵隔及右肺门见多发增大淋巴结,大者短径约2.54CM。右肺上叶可见钙化影。右肺中叶小结节(27)。双肺及胸膜下见多发局限性透亮影,大者直径约为1.2CM。两胸腔无积液征象。心脏大血管管壁可见钙化影。1.右肺门占位并右肺门及纵隔淋巴结转移;伴右肺上叶阻塞性肺炎;考虑为右肺中央型肺癌可能大,请结合其它检查;2.肺气肿;3.右肺上叶钙化灶;中叶小结节。</t>
+          <t>右肺门增大，与右肺门及纵隔内增大淋巴结分界欠清，最大截面大小约3.48CM×1.54CM，CT值约23HU，增强三期CT值分别约67、50、55HU。右肺上叶、中间段支气管狭窄，右肺上叶见片状高密度影。上腔静脉后部管壁略受侵。纵隔及右肺门见多发增大淋巴结，大者短径约2.54CM。右肺上叶可见钙化影。右肺中叶小结节(27)。双肺及胸膜下见多发局限性透亮影，大者直径约为1.2CM。两胸腔无积液征象。心脏大血管管壁可见钙化影。1.右肺门占位并右肺门及纵隔淋巴结转移；伴右肺上叶阻塞性肺炎；考虑为右肺中央型肺癌可能大，请结合其它检查；2.肺气肿；3.右肺上叶钙化灶；中叶小结节。</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3463,7 +3463,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1.右肺下叶占位,考虑周围型肺癌,较前CT(2014-10-11)病灶增大,双侧胸腔积液吸收,双肺多发转移,请结合临床;2.肺气肿;双肺多发条索灶;5.心脏增大,心包少量积液;6.双侧多发肋骨骨质密度欠规整,请结合临床。结合HRCT:右肺下叶可见类圆形高密度团块影,边界清晰,截面大小约3.33CM×3.57CM,HR扫描可边缘可见浅分叶,并可见血管集束,密度尚均,CT值约31HU,病灶与邻近胸膜宽基底相连,左肺尖胸膜肥厚。双肺可见多发小结节及粟粒影。双肺可见多发条索影。双肺可见多发小片状透亮影。两肺门区未见异常。所示气管支气管影通畅。纵隔内可见稍大淋巴结影,径约1.67CM。左房、右房增大,主动脉及冠状动脉见钙化影,心包可见少量液体密度影。双侧多根肋骨骨质形态欠规整。</t>
+          <t>1.右肺下叶占位，考虑周围型肺癌，较前CT(2014-10-11)病灶增大，双侧胸腔积液吸收，双肺多发转移，请结合临床；2.肺气肿；双肺多发条索灶；5.心脏增大，心包少量积液；6.双侧多发肋骨骨质密度欠规整，请结合临床。结合HRCT：右肺下叶可见类圆形高密度团块影，边界清晰，截面大小约3.33CM×3.57CM，HR扫描可边缘可见浅分叶，并可见血管集束，密度尚均，CT值约31HU，病灶与邻近胸膜宽基底相连，左肺尖胸膜肥厚。双肺可见多发小结节及粟粒影。双肺可见多发条索影。双肺可见多发小片状透亮影。两肺门区未见异常。所示气管支气管影通畅。纵隔内可见稍大淋巴结影，径约1.67CM。左房、右房增大，主动脉及冠状动脉见钙化影，心包可见少量液体密度影。双侧多根肋骨骨质形态欠规整。</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3485,7 +3485,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>右肺下叶肿块,边缘毛刺,邻近胸膜牵拉,大小约为2.5CM×1.9CM,CT值约59HU,见血管集束。双肺内可见多发结节样及粟粒样密度影,大者径约0.4CM。右肺下叶斑片状高密度影,边界模糊。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。心脏大血管未见异常。部分上位胸椎椎体及附件密度增高。右乳腺钙化灶。甲状腺右叶增大,密度不均匀。所示左肾低密度灶。1.右肺下叶周围型肺癌较前2016-11-28略减小,伴双肺多发转移,部分较前略减小、消失;2.右肺下叶炎症,较前相仿;3.部分胸椎及邻近肋骨密度增高,较前相仿;4.甲状腺右叶病变,请结合相关检查;5.所示左肾囊肿。</t>
+          <t>右肺下叶肿块，边缘毛刺，邻近胸膜牵拉，大小约为2.5CM×1.9CM，CT值约59HU，见血管集束。双肺内可见多发结节样及粟粒样密度影，大者径约0.4CM。右肺下叶斑片状高密度影，边界模糊。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。心脏大血管未见异常。部分上位胸椎椎体及附件密度增高。右乳腺钙化灶。甲状腺右叶增大，密度不均匀。所示左肾低密度灶。1.右肺下叶周围型肺癌较前2016-11-28略减小，伴双肺多发转移，部分较前略减小、消失；2.右肺下叶炎症，较前相仿；3.部分胸椎及邻近肋骨密度增高，较前相仿；4.甲状腺右叶病变，请结合相关检查；5.所示左肾囊肿。</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3507,7 +3507,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>右乳术后,前胸壁近胸骨旁软组织略示增厚,增强后示轻度强化。右侧腋窝结构紊乱。右侧内乳见增大淋巴结,短径约0.4CM。纵隔内未见明显肿大淋巴结。双侧肺野内见多发囊泡状过度透光区,余肺野清晰,未见异常。肝内见多发低密度结节灶,边缘欠清晰或模糊,大者直径约0.8CM,增强后可见强化。另肝左叶内见一低密度灶,边缘尚清晰,长径约1.5CM,增强后部分边缘似见点样强化。扫描野内右肾见直径不足0.5CM小囊性低密度结节灶,边缘清晰,未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔及腹膜后未见增大淋巴结。鼻咽、口咽、喉及下咽未见异常。双侧内未见明显肿大淋巴结。双侧甲状腺大小密度形态可。1.结合临床,右乳癌术后,右侧胸壁复发;右侧内乳区淋巴结稍大;肝转移,上述病变较前2014-9-10均示好转2.双肺气肿3.肝左叶低密度灶,考虑血管瘤,建议观察4.右肾囊肿5.颈部扫描未见异常</t>
+          <t>右乳术后，前胸壁近胸骨旁软组织略示增厚，增强后示轻度强化。右侧腋窝结构紊乱。右侧内乳见增大淋巴结，短径约0.4CM。纵隔内未见明显肿大淋巴结。双侧肺野内见多发囊泡状过度透光区，余肺野清晰，未见异常。肝内见多发低密度结节灶，边缘欠清晰或模糊，大者直径约0.8CM，增强后可见强化。另肝左叶内见一低密度灶，边缘尚清晰，长径约1.5CM，增强后部分边缘似见点样强化。扫描野内右肾见直径不足0.5CM小囊性低密度结节灶，边缘清晰，未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔及腹膜后未见增大淋巴结。鼻咽、口咽、喉及下咽未见异常。双侧内未见明显肿大淋巴结。双侧甲状腺大小密度形态可。1.结合临床，右乳癌术后，右侧胸壁复发；右侧内乳区淋巴结稍大；肝转移，上述病变较前2014-9-10均示好转2.双肺气肿3.肝左叶低密度灶，考虑血管瘤，建议观察4.右肾囊肿5.颈部扫描未见异常</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3524,7 +3524,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>双肺纹理稀疏,双肺透过度增强。左肺下叶内基底段可见不规则形状肿块影,边界欠清,大小约为5.8CM×5.2CM,CT值约为25HU,左肺下叶内基底段支气管阻断,左肺下叶远端可见多发斑片样渗出影。另双肺可见多发大小不一结节影,大者径约为1.1CM。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。左侧胸腔内可见少量积液。心脏大血管未见异常。所示肝内可见多发低密度影。1、左肺下叶内基底段肿块,考虑左肺下叶中心型肺癌并左肺下叶阻塞性肺炎,肺内多发转移瘤,左侧少量胸腔积液;2、肺气肿征象;3、肝内多发低密度灶-转移?请结合腹部CT。</t>
+          <t>双肺纹理稀疏，双肺透过度增强。左肺下叶内基底段可见不规则形状肿块影，边界欠清，大小约为5.8CM×5.2CM，CT值约为25HU，左肺下叶内基底段支气管阻断，左肺下叶远端可见多发斑片样渗出影。另双肺可见多发大小不一结节影，大者径约为1.1CM。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。左侧胸腔内可见少量积液。心脏大血管未见异常。所示肝内可见多发低密度影。1、左肺下叶内基底段肿块，考虑左肺下叶中心型肺癌并左肺下叶阻塞性肺炎，肺内多发转移瘤，左侧少量胸腔积液；2、肺气肿征象；3、肝内多发低密度灶-转移?请结合腹部CT。</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3546,7 +3546,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>右肺(24、27、30)粟粒灶。左肺下叶肿块,见分叶,较大层面大小约为6.6CM×4.8CM,CT值约30HU,增强扫描78HU、85HU、75HU,与胸膜关系密切。两胸腔无积液征象。各大血管边界清晰。纵隔内未见异常密度影。主动脉,肺动脉主干及其左右分支内造影剂密度均匀。所示肝脏低密度灶。1.左肺下叶占位,周围型肺癌可能性大;2.右肺多发粟粒灶,转移可能,随诊;3.肝脏改变,请结合腹部检查。</t>
+          <t>右肺(24、27、30)粟粒灶。左肺下叶肿块，见分叶，较大层面大小约为6.6CM×4.8CM，CT值约30HU，增强扫描78HU、85HU、75HU，与胸膜关系密切。两胸腔无积液征象。各大血管边界清晰。纵隔内未见异常密度影。主动脉，肺动脉主干及其左右分支内造影剂密度均匀。所示肝脏低密度灶。1.左肺下叶占位，周围型肺癌可能性大；2.右肺多发粟粒灶，转移可能，随诊；3.肝脏改变，请结合腹部检查。</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3568,7 +3568,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>右侧乳腺表面皮肤光整,未见异常增厚,外侧象限内见一类圆形软组织密度影,直径约为1.53CM,CT值约为53HU,内似见点状致密影;右侧腋窝可见多个高密度结节影,大小不一,边缘光整。两肺门区未见异常;所示气管支气管影未见截断;纵隔内未见异常增大的淋巴结;两胸腔无积液征象;心脏大血管未见异常。1、右侧乳腺外侧象限软组织结节,考虑恶性可能性大,建议MR详查;2、右侧腋窝多个淋巴结肿大,考虑转移,请结合临床。。</t>
+          <t>右侧乳腺表面皮肤光整，未见异常增厚，外侧象限内见一类圆形软组织密度影，直径约为1.53CM，CT值约为53HU，内似见点状致密影；右侧腋窝可见多个高密度结节影，大小不一，边缘光整。两肺门区未见异常；所示气管支气管影未见截断；纵隔内未见异常增大的淋巴结；两胸腔无积液征象；心脏大血管未见异常。1、右侧乳腺外侧象限软组织结节，考虑恶性可能性大，建议MR详查；2、右侧腋窝多个淋巴结肿大，考虑转移，请结合临床。。</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3590,7 +3590,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>双肺支气管血管束增多紊乱,支气管壁增厚。左肺门区可见软组织密度团块影,大小约3.46CM×2.56CM,CT值约54HU,右肺下叶背段支气管截断。双肺可见散在多发小结节影。纵隔内可见多发肿大淋巴结影,大者径约1.45CM。双侧胸腔可见弧形液体影。心脏大小形态未见异常,心包可见少量液体影,径约0.67CM。所示胸骨、双侧多根肋骨、多个胸腰椎椎体及附件可见絮状高密度影,及低密度骨质破坏区。1.考虑左肺门区中心型肺癌,双肺多发转移,淋巴道转移(增厚小叶间隔),纵隔淋巴结转移;2.双侧胸腔、心包少量积液;3.所示多发骨转移征象。</t>
+          <t>双肺支气管血管束增多紊乱，支气管壁增厚。左肺门区可见软组织密度团块影，大小约3.46CM×2.56CM，CT值约54HU，右肺下叶背段支气管截断。双肺可见散在多发小结节影。纵隔内可见多发肿大淋巴结影，大者径约1.45CM。双侧胸腔可见弧形液体影。心脏大小形态未见异常，心包可见少量液体影，径约0.67CM。所示胸骨、双侧多根肋骨、多个胸腰椎椎体及附件可见絮状高密度影，及低密度骨质破坏区。1.考虑左肺门区中心型肺癌，双肺多发转移，淋巴道转移(增厚小叶间隔)，纵隔淋巴结转移；2.双侧胸腔、心包少量积液；3.所示多发骨转移征象。</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3612,7 +3612,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>1.右肺上叶周围型肺癌;2.左肺下叶背段胸膜下小结节,随诊;3.支气管炎;4.部分上位椎体骨质改变考虑转移。两肺纹理增强,右肺上叶后段可见团块状高密度影,最大截面约3.7CM×3.7CM,其内密度均匀,CT值约48HU,邻近胸膜受牵拉;左肺下叶背段胸膜下可见小结节影,边缘光整,径约0.32CM,双肺门区未见异常,所示气管支气管影通畅;纵隔内未见异常增大的淋巴结,两胸腔未见明显积液征象,心脏不大。部分上位椎体内骨质密度减低。</t>
+          <t>1.右肺上叶周围型肺癌；2.左肺下叶背段胸膜下小结节，随诊；3.支气管炎；4.部分上位椎体骨质改变考虑转移。两肺纹理增强，右肺上叶后段可见团块状高密度影，最大截面约3.7CM×3.7CM，其内密度均匀，CT值约48HU，邻近胸膜受牵拉；左肺下叶背段胸膜下可见小结节影，边缘光整，径约0.32CM，双肺门区未见异常，所示气管支气管影通畅；纵隔内未见异常增大的淋巴结，两胸腔未见明显积液征象，心脏不大。部分上位椎体内骨质密度减低。</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3634,7 +3634,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>与2012-1-10片对照:1.左肺上叶中心型肺癌并阻塞性肺炎与阻塞性肺不张,主动脉弓旁、纵隔及左肺门淋巴结转移,较前未见明显变化;2.右肺小结节,较前未见明显变化;3.左肺下叶前底段少许炎症;4.左侧肾上腺增粗,较前无明显变化。左肺上叶见团片状软组织团块,最大截面大小约为5.3CM×2.3CM,其内部密度不均,CT值约50HU,增强后明显不均匀强化,三期CT值约145HU、83HU、79HU,病灶周围可见小片状模糊高密度影,增强扫描可见多个小血管影。右肺上叶近水平裂见一径约0.5CM结节。左肺下叶前底段可见小斑片状模糊影。主动脉弓旁、纵隔及左肺门淋巴结增大,大者短径约3.7CM,增强后环形强化,内部密度较低。两胸腔无积液征象。心脏大血管形态未见异常。左侧肾上腺稍粗,增强扫描可见均匀强化。</t>
+          <t>与2012-1-10片对照：1.左肺上叶中心型肺癌并阻塞性肺炎与阻塞性肺不张，主动脉弓旁、纵隔及左肺门淋巴结转移，较前未见明显变化；2.右肺小结节，较前未见明显变化；3.左肺下叶前底段少许炎症；4.左侧肾上腺增粗，较前无明显变化。左肺上叶见团片状软组织团块，最大截面大小约为5.3CM×2.3CM，其内部密度不均，CT值约50HU，增强后明显不均匀强化，三期CT值约145HU、83HU、79HU，病灶周围可见小片状模糊高密度影，增强扫描可见多个小血管影。右肺上叶近水平裂见一径约0.5CM结节。左肺下叶前底段可见小斑片状模糊影。主动脉弓旁、纵隔及左肺门淋巴结增大，大者短径约3.7CM，增强后环形强化，内部密度较低。两胸腔无积液征象。心脏大血管形态未见异常。左侧肾上腺稍粗，增强扫描可见均匀强化。</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3656,7 +3656,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>右乳区可见软组织密度团块影,大小约2.3CM×1.54CM,CT值约36HU,皮肤牵拉凹陷。双肺上叶可见稍高密度结节影,大者大小约0.6CM×0.45CM。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。多个椎体、双侧多根肋骨、胸骨及左侧肱骨头可见高密度影。1.右乳腺区团块,考虑乳腺癌,右侧腋窝淋巴结增大;2.双肺上叶小结节,较20140903CT片相比未见变化;3.所示多发骨转移征象。</t>
+          <t>右乳区可见软组织密度团块影，大小约2.3CM×1.54CM，CT值约36HU，皮肤牵拉凹陷。双肺上叶可见稍高密度结节影，大者大小约0.6CM×0.45CM。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。多个椎体、双侧多根肋骨、胸骨及左侧肱骨头可见高密度影。1.右乳腺区团块，考虑乳腺癌，右侧腋窝淋巴结增大；2.双肺上叶小结节，较20140903CT片相比未见变化；3.所示多发骨转移征象。</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3678,7 +3678,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>1.结合临床,右乳癌术后,多发脑转移、多发骨转移、多发肝转移、双侧肾上腺转移、右颈部淋巴结转移治疗后,其中脑转移及多数成骨性骨破坏病变未见高代谢,部分骨转移、肝及双侧肾上腺转移,右颈淋巴结转移示高代谢。2.左乳略高代谢结节,转移不除外,左前胸壁结节,无高代谢,建议观察。3.右侧大量胸腔积液,右肺中下叶受压实变;左侧胸腔及心包少量积液。4.左肺类结节,无高代谢,建议观察。5.右侧腮腺肿瘤粒子植入术后改变,局部未见高代谢。6.右侧腮腺后方皮下软组织结节,略高代谢,考虑皮脂腺囊肿。静脉注射示踪剂FDG后60MMIN行PET/CT显像。PET/CT图像示右乳术后缺如,术区未见复发征象及确切异常放射性摄取。左乳腺内局限性放射性摄取增高结节,最高SUV2.1;左前胸壁小结节,长径约为0.9CM,未见确切异常放射性摄取。双腋窝未见异常肿大淋巴结及异常放射性摄取。脑内多发低密度灶部分钙化,部分病灶周围轻度水肿,病变未见确切高代谢。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。甲状腺内未见异常放射性增高灶。右侧腮腺粒子植入术后,粒子分布区未见确切异常代谢。右颈部多发肿大淋巴结,大者短径约为0.8CM,放射性摄取增高,最高SUV3.8。右侧腮腺后方皮下软组织结节,局部皮肤略增厚截面约为0.8CM×0.4CM,轻度放射性摄取,最高SUV1.9。双颈部斜角肌对称性放射性浓聚,考虑肌肉紧张所致。右侧胸腔大量积液,右肺中下叶受压不张实变;左侧胸腔及心包示少量液性密度影。左肺类结节灶,未见异常放射性摄取。腹部胃充盈尚可,胃壁显影如常。肝脏形态可,轮廓光整,肝叶比例正常,肝内示低密度灶,直径约为1.3CM,放射性浓聚,最高SUV4.7。双侧肾上腺增大,均示放射性摄取增高,最高SUV4.5。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。两侧肾脏显影可,肾盂、肾盏及输尿管无扩张。腹部可见条索状肠影。盆腔内膀胱放射性浓聚如常,膀胱壁无增厚。两侧腹股沟无异常淋巴结显示。子宫形态尚可,局部无异常放射性浓聚。两侧附件区未见异常放射性摄取。视野内颅骨、脊柱、骨盆诸骨、胸骨、双侧肩胛骨、双侧肱骨、双侧股骨均示弥漫成骨为主的骨质破坏,其中双侧肱骨、多个椎体、骶骨及左侧髂骨示放射性摄取增高,最高SUV7.2。</t>
+          <t>1.结合临床，右乳癌术后，多发脑转移、多发骨转移、多发肝转移、双侧肾上腺转移、右颈部淋巴结转移治疗后，其中脑转移及多数成骨性骨破坏病变未见高代谢，部分骨转移、肝及双侧肾上腺转移，右颈淋巴结转移示高代谢。2.左乳略高代谢结节，转移不除外，左前胸壁结节，无高代谢，建议观察。3.右侧大量胸腔积液，右肺中下叶受压实变；左侧胸腔及心包少量积液。4.左肺类结节，无高代谢，建议观察。5.右侧腮腺肿瘤粒子植入术后改变，局部未见高代谢。6.右侧腮腺后方皮下软组织结节，略高代谢，考虑皮脂腺囊肿。静脉注射示踪剂FDG后60MMIN行PET/CT显像。PET/CT图像示右乳术后缺如，术区未见复发征象及确切异常放射性摄取。左乳腺内局限性放射性摄取增高结节，最高SUV2.1；左前胸壁小结节，长径约为0.9CM，未见确切异常放射性摄取。双腋窝未见异常肿大淋巴结及异常放射性摄取。脑内多发低密度灶部分钙化，部分病灶周围轻度水肿，病变未见确切高代谢。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺内未见异常放射性增高灶。右侧腮腺粒子植入术后，粒子分布区未见确切异常代谢。右颈部多发肿大淋巴结，大者短径约为0.8CM，放射性摄取增高，最高SUV3.8。右侧腮腺后方皮下软组织结节，局部皮肤略增厚截面约为0.8CM×0.4CM，轻度放射性摄取，最高SUV1.9。双颈部斜角肌对称性放射性浓聚，考虑肌肉紧张所致。右侧胸腔大量积液，右肺中下叶受压不张实变；左侧胸腔及心包示少量液性密度影。左肺类结节灶，未见异常放射性摄取。腹部胃充盈尚可，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝内示低密度灶，直径约为1.3CM，放射性浓聚，最高SUV4.7。双侧肾上腺增大，均示放射性摄取增高，最高SUV4.5。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾盂、肾盏及输尿管无扩张。腹部可见条索状肠影。盆腔内膀胱放射性浓聚如常，膀胱壁无增厚。两侧腹股沟无异常淋巴结显示。子宫形态尚可，局部无异常放射性浓聚。两侧附件区未见异常放射性摄取。视野内颅骨、脊柱、骨盆诸骨、胸骨、双侧肩胛骨、双侧肱骨、双侧股骨均示弥漫成骨为主的骨质破坏，其中双侧肱骨、多个椎体、骶骨及左侧髂骨示放射性摄取增高，最高SUV7.2。</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3695,7 +3695,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>1.结合临床,考虑右乳癌并右侧腋窝及颈后三角区淋巴结转移2.肝内低密度灶,考虑囊肿3.胸骨局部骨质显示中断并周边环状高密度金属影,考虑术后改变,请结合临床右乳乳头内上方见一软组织密度肿块,截面约3.8CM×3.5CM,边缘分叶,密度欠均质,病变与正常腺体分界不清,邻近乳头处皮肤显示增厚,增强扫描病变呈轻度不均匀强化。左乳未见异常。右侧腋窝及右侧颈后三角区见多发增大淋巴结,大者短径约0.9CM。左侧腋窝及双锁上见短径不足0.5CM小淋巴结。双侧内乳区、纵隔及双肺门未见肿大淋巴结。扫描野内肝右叶见一低密度灶,直径约0.9CM,边界尚清,增强扫描未见强化。骨窗示:胸骨局部骨质显示中断,周边见环状高密度金属影。</t>
+          <t>1.结合临床，考虑右乳癌并右侧腋窝及颈后三角区淋巴结转移2.肝内低密度灶，考虑囊肿3.胸骨局部骨质显示中断并周边环状高密度金属影，考虑术后改变，请结合临床右乳乳头内上方见一软组织密度肿块，截面约3.8CM×3.5CM，边缘分叶，密度欠均质，病变与正常腺体分界不清，邻近乳头处皮肤显示增厚，增强扫描病变呈轻度不均匀强化。左乳未见异常。右侧腋窝及右侧颈后三角区见多发增大淋巴结，大者短径约0.9CM。左侧腋窝及双锁上见短径不足0.5CM小淋巴结。双侧内乳区、纵隔及双肺门未见肿大淋巴结。扫描野内肝右叶见一低密度灶，直径约0.9CM，边界尚清，增强扫描未见强化。骨窗示：胸骨局部骨质显示中断，周边见环状高密度金属影。</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -3717,7 +3717,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>右肺下叶肿块,边缘毛刺,邻近胸膜牵拉,大小约为2.45CM×1.88CM,CT值约55HU,双肺内可见多发结节样及粟粒样密度影,大者径约0.8CM。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。部分上位胸椎骨密度增高。右乳腺钙化灶。1.右肺下叶后基底段团块灶,考虑恶性占位性病变,周围型肺癌可能性大,伴双肺多发转移,较前2016-05-13CT相仿;2.部分胸椎骨密度增高,较前相仿。</t>
+          <t>右肺下叶肿块，边缘毛刺，邻近胸膜牵拉，大小约为2.45CM×1.88CM，CT值约55HU，双肺内可见多发结节样及粟粒样密度影，大者径约0.8CM。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。部分上位胸椎骨密度增高。右乳腺钙化灶。1.右肺下叶后基底段团块灶，考虑恶性占位性病变，周围型肺癌可能性大，伴双肺多发转移，较前2016-05-13CT相仿；2.部分胸椎骨密度增高，较前相仿。</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -3739,7 +3739,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>1.结合临床,右乳癌术后改变;骨转移,较前(2015-7-21)变化不著;左锁骨上、左下颈淋巴结转移,较前进展2.右肺中叶结节灶,变化不著3.脂肪肝,肝内钙化灶4.左侧副鼻窦炎,变化不著右乳术后缺如,术区未见异常密度灶。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门及纵隔未见肿大淋巴结。左侧内乳区见小淋巴结,短径不足0.5CM。右肺中叶见一结节灶(图3-27),直径约0.3CM,密度较低。扫描野内肝实质密度均匀减低。肝内见斑点状钙化灶。胸骨及部分胸椎示骨质破坏。鼻咽、口咽、喉及下咽未见异常。左侧锁骨上及左侧颈后三角区示数个小结节灶,大者短径约1.9CM,密度较低。余双侧颈动脉鞘区见短径不足0.5CM小淋巴结。左侧上颌窦粘膜略增厚。。</t>
+          <t>1.结合临床，右乳癌术后改变；骨转移，较前(2015-7-21)变化不著；左锁骨上、左下颈淋巴结转移，较前进展2.右肺中叶结节灶，变化不著3.脂肪肝，肝内钙化灶4.左侧副鼻窦炎，变化不著右乳术后缺如，术区未见异常密度灶。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门及纵隔未见肿大淋巴结。左侧内乳区见小淋巴结，短径不足0.5CM。右肺中叶见一结节灶(图3-27)，直径约0.3CM，密度较低。扫描野内肝实质密度均匀减低。肝内见斑点状钙化灶。胸骨及部分胸椎示骨质破坏。鼻咽、口咽、喉及下咽未见异常。左侧锁骨上及左侧颈后三角区示数个小结节灶，大者短径约1.9CM，密度较低。余双侧颈动脉鞘区见短径不足0.5CM小淋巴结。左侧上颌窦粘膜略增厚。。</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -3756,7 +3756,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>右肺门增大,右肺上叶支气管腔明显狭窄,壁明显增厚,呈团块状、范围约2.5CM×3.2CM,CT值约31HU。右肺中叶可见小结节影,大小约0.3CM。右肺下叶背段结节。两肺支气管血管束增多、变细;两肺透过度明显增加,肺野内弥漫囊状透光区;双肺尖可见片状及结节影,其内可见钙化,右肺中叶可见点状致密影;纵隔内未见异常增大的淋巴结;两胸腔无积液征象;心影增大。主动脉和冠脉钙化。1.右肺上叶中心型肺癌,较2012-04-09片进展,支气管狭窄明显;右肺中叶与下叶背段结节较前新发,考虑转移瘤可能性大;2.慢性支气管炎、肺气肿征象;3.双肺尖陈旧性病变,右肺中叶下叶点状钙化。</t>
+          <t>右肺门增大，右肺上叶支气管腔明显狭窄，壁明显增厚，呈团块状、范围约2.5CM×3.2CM，CT值约31HU。右肺中叶可见小结节影，大小约0.3CM。右肺下叶背段结节。两肺支气管血管束增多、变细；两肺透过度明显增加，肺野内弥漫囊状透光区；双肺尖可见片状及结节影，其内可见钙化，右肺中叶可见点状致密影；纵隔内未见异常增大的淋巴结；两胸腔无积液征象；心影增大。主动脉和冠脉钙化。1.右肺上叶中心型肺癌，较2012-04-09片进展，支气管狭窄明显；右肺中叶与下叶背段结节较前新发，考虑转移瘤可能性大；2.慢性支气管炎、肺气肿征象；3.双肺尖陈旧性病变，右肺中叶下叶点状钙化。</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -3778,7 +3778,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1、右肺上叶占位,考虑肺癌;2、右侧锁骨上及纵隔内淋巴结转移;3、右肺上叶结节,考虑转移;4、右肺中叶钙化灶;5、左肺多发索条灶。右肺上叶近纵隔旁可见软组织密度影,大小为7.64CM×6.08CM,CT值为36HU,边界欠清,右肺上叶支气管未见异常,纵隔内气管及食管受压变窄。增强后三期CT值为50HU、64HU、60HU。右肺尖及上叶后段可见一结节状高密度影,大者直径为1.1CM。右肺中叶可见点状钙化灶。左肺内可见多发纤维索条影。左侧胸膜增厚,部分可见钙化斑。两肺及肺门区未见异常密度影。两胸腔无积液征象。各大血管边界清晰。右侧锁骨上及纵隔内可见多个淋巴结,最大者位于锁骨上,直径为3.51CM。</t>
+          <t>1、右肺上叶占位，考虑肺癌；2、右侧锁骨上及纵隔内淋巴结转移；3、右肺上叶结节，考虑转移；4、右肺中叶钙化灶；5、左肺多发索条灶。右肺上叶近纵隔旁可见软组织密度影，大小为7.64CM×6.08CM，CT值为36HU，边界欠清，右肺上叶支气管未见异常，纵隔内气管及食管受压变窄。增强后三期CT值为50HU、64HU、60HU。右肺尖及上叶后段可见一结节状高密度影，大者直径为1.1CM。右肺中叶可见点状钙化灶。左肺内可见多发纤维索条影。左侧胸膜增厚，部分可见钙化斑。两肺及肺门区未见异常密度影。两胸腔无积液征象。各大血管边界清晰。右侧锁骨上及纵隔内可见多个淋巴结，最大者位于锁骨上，直径为3.51CM。</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -3800,7 +3800,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>1、左肺上叶周围型肺癌;2、左肺上叶、双肺下叶多发结节,转移瘤可能性大,随诊;3、纵隔多发小淋巴结。左肺上叶尖后段可见团片影,呈分叶状,大小为1.67CM×2.41CM,CT值为19HU,可见血管集束征和胸膜牵拉征。左肺上叶、双肺下叶可见多个结节影,大者直径为0.75CM。两肺门区未见异常。所示气管支气管影正常。纵隔多发小淋巴结。两胸腔无积液征象。心脏大血管未见异常。</t>
+          <t>1、左肺上叶周围型肺癌；2、左肺上叶、双肺下叶多发结节，转移瘤可能性大，随诊；3、纵隔多发小淋巴结。左肺上叶尖后段可见团片影，呈分叶状，大小为1.67CM×2.41CM，CT值为19HU，可见血管集束征和胸膜牵拉征。左肺上叶、双肺下叶可见多个结节影，大者直径为0.75CM。两肺门区未见异常。所示气管支气管影正常。纵隔多发小淋巴结。两胸腔无积液征象。心脏大血管未见异常。</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -3822,7 +3822,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>与2012.7.24日CT比较1.右肺上叶中心型肺癌,伴肺内转移可能性大,右侧主支气管及肺段支气管管段狭窄,闭塞,较前片进展,请结合临床;2.左肺舌叶斑片影,转移待除外;3.纵隔淋巴结转移较前增大。右肺上叶可见团块影,大小约为4.7CM×3.2CM,呈分叶状,CT值约为29HU,周围可见棘状突起,周围并可见多发结节、斑片条索影,右侧支气管管壁增厚,管腔变窄,右肺下叶及中叶支气管狭窄,肿块与右肺动静脉、上腔静脉关系密切。左肺舌叶可见斑点模糊影。左肺门区未见异常。纵隔内增大的淋巴结影,径约2.1CM。两胸腔无积液征象。心脏大血管未见异常。</t>
+          <t>与2012.7.24日CT比较1.右肺上叶中心型肺癌，伴肺内转移可能性大，右侧主支气管及肺段支气管管段狭窄，闭塞，较前片进展，请结合临床；2.左肺舌叶斑片影，转移待除外；3.纵隔淋巴结转移较前增大。右肺上叶可见团块影，大小约为4.7CM×3.2CM，呈分叶状，CT值约为29HU，周围可见棘状突起，周围并可见多发结节、斑片条索影，右侧支气管管壁增厚，管腔变窄，右肺下叶及中叶支气管狭窄，肿块与右肺动静脉、上腔静脉关系密切。左肺舌叶可见斑点模糊影。左肺门区未见异常。纵隔内增大的淋巴结影，径约2.1CM。两胸腔无积液征象。心脏大血管未见异常。</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -3844,7 +3844,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>右肺门可见一团块影,最大层面大小约为5.05CM×6.22CM,CT值约为38HU,内可见一点状钙化,右肺上叶支气管阻断,右肺上叶膨胀不全,右肺尖见点片状高密度影;右肺中叶内侧段可见一磨玻璃密度结节,径长约0.56CM。两肺纹理清晰。两肺门区未见异常。所示气管支气管影正常。纵隔内可见多发增大淋巴结,部分融合,大者径长约1.96CM。两胸腔无积液征象。左心房增大。主动脉、冠脉可见条状钙化。右侧第7肋骨斑点状高密度影。左侧肾上腺肿块影。1、右肺门中央型肺癌伴纵隔淋巴结转移,右上肺膨胀不全并阻塞性炎症;2、右肺中叶磨玻璃密度结节,请随诊;3、右侧第7肋骨高密度,请结合其它检查随诊;4、左心房增大,右侧胸膜局部增厚;5、左侧肾上腺肿块影,请结合相关检查。</t>
+          <t>右肺门可见一团块影，最大层面大小约为5.05CM×6.22CM，CT值约为38HU，内可见一点状钙化，右肺上叶支气管阻断，右肺上叶膨胀不全，右肺尖见点片状高密度影；右肺中叶内侧段可见一磨玻璃密度结节，径长约0.56CM。两肺纹理清晰。两肺门区未见异常。所示气管支气管影正常。纵隔内可见多发增大淋巴结，部分融合，大者径长约1.96CM。两胸腔无积液征象。左心房增大。主动脉、冠脉可见条状钙化。右侧第7肋骨斑点状高密度影。左侧肾上腺肿块影。1、右肺门中央型肺癌伴纵隔淋巴结转移，右上肺膨胀不全并阻塞性炎症；2、右肺中叶磨玻璃密度结节，请随诊；3、右侧第7肋骨高密度，请结合其它检查随诊；4、左心房增大，右侧胸膜局部增厚；5、左侧肾上腺肿块影，请结合相关检查。</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -3866,7 +3866,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1.右肺上叶肿块影,考虑为周围型肺癌合并纵隔淋巴结转移可能性大,请结合临床;2.左肺术后改变,左肺下叶纤维索条灶;3.左侧胸膜肥厚、钙化;4.右肺下叶小结节影,请密切随诊。右肺上叶可见一较大肿块影,密度不均匀,CT值为16~38HU;边缘不光滑,可见毛刺,周围可见片状高密度影;最大层面大小约为8.3CM×6.5CM;右上肺支气管截断。右肺下叶可见一小结节影,直径约为0.6CM。左肺体积减小;左肺下叶可见纤维索条影。纵隔内可见增大淋巴结影,大者短径约为1.3CM;双侧胸腔未见积液征象,左侧胸膜增厚,并可见条形钙化影;主动脉管壁及冠脉走行区可见点条形钙化影。</t>
+          <t>1.右肺上叶肿块影，考虑为周围型肺癌合并纵隔淋巴结转移可能性大，请结合临床；2.左肺术后改变，左肺下叶纤维索条灶；3.左侧胸膜肥厚、钙化；4.右肺下叶小结节影，请密切随诊。右肺上叶可见一较大肿块影，密度不均匀，CT值为16~38HU；边缘不光滑，可见毛刺，周围可见片状高密度影；最大层面大小约为8.3CM×6.5CM；右上肺支气管截断。右肺下叶可见一小结节影，直径约为0.6CM。左肺体积减小；左肺下叶可见纤维索条影。纵隔内可见增大淋巴结影，大者短径约为1.3CM；双侧胸腔未见积液征象，左侧胸膜增厚，并可见条形钙化影；主动脉管壁及冠脉走行区可见点条形钙化影。</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3888,7 +3888,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1、左肺上叶下舌段机化性炎症,随诊;2、左侧乳腺癌,左侧腋窝淋巴结转移,右下肺小结节,考虑转移可能性大,随诊;3、左侧甲状腺低密度灶,请详查。左肺上叶下舌段可见斑片状密度增高影,边界模糊不清。两肺纹理增多。两肺门区未见异常。所示气管支气管影正常。左侧腋窝可见一类圆形团块影,径长约1.17CM,边缘模糊,CT值约为57HU。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。左侧乳腺可见一团块影,大小约为2.36CM×3.59CM,CT值约为26HU,边界清。所示左侧甲状腺可见一类圆形低密度影。</t>
+          <t>1、左肺上叶下舌段机化性炎症，随诊；2、左侧乳腺癌，左侧腋窝淋巴结转移，右下肺小结节，考虑转移可能性大，随诊；3、左侧甲状腺低密度灶，请详查。左肺上叶下舌段可见斑片状密度增高影，边界模糊不清。两肺纹理增多。两肺门区未见异常。所示气管支气管影正常。左侧腋窝可见一类圆形团块影，径长约1.17CM，边缘模糊，CT值约为57HU。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。左侧乳腺可见一团块影，大小约为2.36CM×3.59CM，CT值约为26HU，边界清。所示左侧甲状腺可见一类圆形低密度影。</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3910,7 +3910,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>左肺下叶可见一肿块影,其内密度不均,可见低密度影及点状致密影,CT值约为18HU-41HU,病灶邻近部分支气管变窄,左肺不张。右肺尖可见结节影,径约1.41CM,邻近胸膜凹陷,其内可见致密影。右肺可见多个散在高密度及磨玻璃样密度结节,大者径约0.63CM。右肺密度不均匀减低,可见多个小圆形低密度影。左肺门、纵隔内可见多发肿大淋巴结影,大者短径约为2.13CM。左侧胸腔可见弧形液体密度影。主动脉、冠状动脉走行区可见弧形致密影。所示诸骨未见骨质密度明显异常改变或骨质破坏征象。1.考虑左肺下叶中心型肺癌并左肺阻塞性肺不张,较2015-6-9片病变进展,左肺门及纵隔内淋巴结转移、左侧胸腔积液较前相仿;2.右肺多发磨玻璃密度结节,较前相仿,转移不除外;3.右肺尖陈旧性病灶;4.肺气肿。</t>
+          <t>左肺下叶可见一肿块影，其内密度不均，可见低密度影及点状致密影，CT值约为18HU-41HU，病灶邻近部分支气管变窄，左肺不张。右肺尖可见结节影，径约1.41CM，邻近胸膜凹陷，其内可见致密影。右肺可见多个散在高密度及磨玻璃样密度结节，大者径约0.63CM。右肺密度不均匀减低，可见多个小圆形低密度影。左肺门、纵隔内可见多发肿大淋巴结影，大者短径约为2.13CM。左侧胸腔可见弧形液体密度影。主动脉、冠状动脉走行区可见弧形致密影。所示诸骨未见骨质密度明显异常改变或骨质破坏征象。1.考虑左肺下叶中心型肺癌并左肺阻塞性肺不张，较2015-6-9片病变进展，左肺门及纵隔内淋巴结转移、左侧胸腔积液较前相仿；2.右肺多发磨玻璃密度结节，较前相仿，转移不除外；3.右肺尖陈旧性病灶；4.肺气肿。</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -3927,7 +3927,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>左乳术后缺如,部分胸肌存在,术区未见明显增厚及异常强化;左侧腋窝术后,结构紊乱。右乳及右侧腋窝未见明确异常。双侧肺野内可见散在多发结节灶,大者直径约2.7CM,边界较清晰。双肺门及纵隔内未见肿大淋巴结。扫描野肝脏实质内可见多发低密度灶,边缘模糊,轻度强化。扫描野内胸廓诸骨未见骨质破坏。左乳癌术后,双肺多发转移,肝转移</t>
+          <t>左乳术后缺如，部分胸肌存在，术区未见明显增厚及异常强化；左侧腋窝术后，结构紊乱。右乳及右侧腋窝未见明确异常。双侧肺野内可见散在多发结节灶，大者直径约2.7CM，边界较清晰。双肺门及纵隔内未见肿大淋巴结。扫描野肝脏实质内可见多发低密度灶，边缘模糊，轻度强化。扫描野内胸廓诸骨未见骨质破坏。左乳癌术后，双肺多发转移，肝转移</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3944,7 +3944,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>1.左肺上叶下舌段结节,考虑恶性伴纵隔多发淋巴结转移可能,前纵隔区团片影、心包稍厚,局部胸骨密度减低,不除外转移可能;左侧肾上腺增粗;胸7、11椎体改变,详查;双侧第6肋局部转移?请结合临床详查;2.右肺上叶尖段小GGO,右肺下叶内侧基底段小磨玻璃灶;左肺尖磨玻璃灶及小结节影,请随诊;3.肺气肿征象;支气管炎;4.左肺下叶前内基底段索条。随诊双侧肺野透光度不一致,双肺上叶内见多发小囊状薄壁无肺纹理区;右肺上叶尖段(S17)可见一结节状磨玻璃密度影,最大径约为0.39CM;左肺上叶下舌段可见一结节状高密度影,最大径约为1.65CM,边缘欠规整,界清;左肺下叶前内基底段可见索条影。余双肺血管气管束增强,走行自然。纵隔内见多发增大的淋巴结,较大者短径约为1.33CM。前纵隔区团片影,心包稍厚。双侧胸腔内未见积液征象。双侧第6肋内局部密度欠均;左侧肾上腺形态饱满,内见一结节影,最大径约为2.55CM,CT值约为37HU。胸7椎体结节状高密度影。胸11椎体局部密度减低。</t>
+          <t>1.左肺上叶下舌段结节，考虑恶性伴纵隔多发淋巴结转移可能，前纵隔区团片影、心包稍厚，局部胸骨密度减低，不除外转移可能；左侧肾上腺增粗；胸7、11椎体改变，详查；双侧第6肋局部转移?请结合临床详查；2.右肺上叶尖段小GGO，右肺下叶内侧基底段小磨玻璃灶；左肺尖磨玻璃灶及小结节影，请随诊；3.肺气肿征象；支气管炎；4.左肺下叶前内基底段索条。随诊双侧肺野透光度不一致，双肺上叶内见多发小囊状薄壁无肺纹理区；右肺上叶尖段(S17)可见一结节状磨玻璃密度影，最大径约为0.39CM；左肺上叶下舌段可见一结节状高密度影，最大径约为1.65CM，边缘欠规整，界清；左肺下叶前内基底段可见索条影。余双肺血管气管束增强，走行自然。纵隔内见多发增大的淋巴结，较大者短径约为1.33CM。前纵隔区团片影，心包稍厚。双侧胸腔内未见积液征象。双侧第6肋内局部密度欠均；左侧肾上腺形态饱满，内见一结节影，最大径约为2.55CM，CT值约为37HU。胸7椎体结节状高密度影。胸11椎体局部密度减低。</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3966,7 +3966,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>对比2012-07-12CT:1.右乳腺癌术后复发,右内乳淋巴结、纵隔及两侧颈部多发淋巴结转移,双肺多发转移,胸骨转移,右侧胸壁软组织转移,较前片减小;2.双侧胸腔积液伴邻近肺组织膨胀不全,较前吸收好转;3.左室增大;4.肝脏病变,结合腹部CT。所示右侧乳腺缺如,右乳腺区见片状模糊影,右内乳动脉区、纵隔及颈部见多发肿大淋巴结,部分融合。双肺内见多发大小不一类圆形高密度影,大者,径约0.5CM。左室增大,大血管管壁未见钙化。双侧胸腔未见液体密度影。胸骨骨质欠规整。所示层面肝脏见多发低密度影。</t>
+          <t>对比2012-07-12CT：1.右乳腺癌术后复发，右内乳淋巴结、纵隔及两侧颈部多发淋巴结转移，双肺多发转移，胸骨转移，右侧胸壁软组织转移，较前片减小；2.双侧胸腔积液伴邻近肺组织膨胀不全，较前吸收好转；3.左室增大；4.肝脏病变，结合腹部CT。所示右侧乳腺缺如，右乳腺区见片状模糊影，右内乳动脉区、纵隔及颈部见多发肿大淋巴结，部分融合。双肺内见多发大小不一类圆形高密度影，大者，径约0.5CM。左室增大，大血管管壁未见钙化。双侧胸腔未见液体密度影。胸骨骨质欠规整。所示层面肝脏见多发低密度影。</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3983,7 +3983,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>右肺上叶尖段可见类圆形稍高密度影,径约4.18CM,呈分叶状,边缘毛糙,可见毛刺,邻近胸膜增厚牵拉,平扫CT值约为30HU,其内支气管壁增厚边缘模糊;右肺上叶尖段(18)、右肺下叶后基底段(34)、右肺下叶前基底段(36)、左肺上叶上舌段(33)、左肺下叶后基底段(39)可见多个磨玻璃影,径约0.67CM,边缘模糊;右肺上叶后段(22)、右肺中叶外侧段(40)可见结节状稍高密度影,径约0.41CM,界尚清;右肺中叶支气管内(29)可见结节状稍高密度影,径约0.46CM;两肺门区未见异常;纵隔内气管分叉前方可见多个结节状稍高密度影,较大者大小约为1.22CM×1.01CM;双侧胸膜局部增厚;两胸腔无积液征象。主动脉、双侧冠状动脉走行区内可见条状高密度钙化影。1.右肺上叶尖段占位,考虑周围型肺癌;邻近支气管壁增厚,呈渗出性改变,考虑淋巴道转移;2.右肺多个磨玻璃灶,首先考虑转移灶;3.左肺两枚磨玻璃灶;右肺上叶后段、右肺中叶外侧段小结节;右肺中叶支气管内小结节;建议随诊;4.纵隔内多个肿大淋巴结,转移不除外,请结合临床。</t>
+          <t>右肺上叶尖段可见类圆形稍高密度影，径约4.18CM，呈分叶状，边缘毛糙，可见毛刺，邻近胸膜增厚牵拉，平扫CT值约为30HU，其内支气管壁增厚边缘模糊；右肺上叶尖段(18)、右肺下叶后基底段(34)、右肺下叶前基底段(36)、左肺上叶上舌段(33)、左肺下叶后基底段(39)可见多个磨玻璃影，径约0.67CM，边缘模糊；右肺上叶后段(22)、右肺中叶外侧段(40)可见结节状稍高密度影，径约0.41CM，界尚清；右肺中叶支气管内(29)可见结节状稍高密度影，径约0.46CM；两肺门区未见异常；纵隔内气管分叉前方可见多个结节状稍高密度影，较大者大小约为1.22CM×1.01CM；双侧胸膜局部增厚；两胸腔无积液征象。主动脉、双侧冠状动脉走行区内可见条状高密度钙化影。1.右肺上叶尖段占位，考虑周围型肺癌；邻近支气管壁增厚，呈渗出性改变，考虑淋巴道转移；2.右肺多个磨玻璃灶，首先考虑转移灶；3.左肺两枚磨玻璃灶；右肺上叶后段、右肺中叶外侧段小结节；右肺中叶支气管内小结节；建议随诊；4.纵隔内多个肿大淋巴结，转移不除外，请结合临床。</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4005,7 +4005,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>1.考虑左肺下叶中心型肺癌并左肺下叶阻塞性肺不张,左肺门及纵隔内淋巴结转移;2.双肺多发磨玻璃密度结节,转移不除外;3.右肺尖区结节状钙化灶;4.肺气肿。右肺下叶可见一肿块影,与胸膜分界欠清,大小约为7.61CM×6.8CM,其内密度不均,可见更低密度影及点状致密影,CT值约为13-48HU,增强扫描三期强化CT值分别为43HU、60HU、68HU,中心更低密度影未见强化。右肺下叶支气管走形截断,右肺尖可见结节影,径约1.35CM,邻近胸膜凹陷,其内可见条样钙化影。右肺上叶(S39、49)、下叶(S57、61、75、105)、中叶(S65、67、72)、左肺上叶(S34、57、66)、下叶(S75)可见多发散在磨玻璃密度结节影,大者径约0.97CM。双肺可见多发囊状透亮影,两肺门区未见异常。纵隔内可见多发肿大淋巴结影,大者短径约为1.96CM。两胸腔无积液征象。主动脉、冠状动脉走行区可见弧形致密影。</t>
+          <t>1.考虑左肺下叶中心型肺癌并左肺下叶阻塞性肺不张，左肺门及纵隔内淋巴结转移；2.双肺多发磨玻璃密度结节，转移不除外；3.右肺尖区结节状钙化灶；4.肺气肿。右肺下叶可见一肿块影，与胸膜分界欠清，大小约为7.61CM×6.8CM，其内密度不均，可见更低密度影及点状致密影，CT值约为13-48HU，增强扫描三期强化CT值分别为43HU、60HU、68HU，中心更低密度影未见强化。右肺下叶支气管走形截断，右肺尖可见结节影，径约1.35CM，邻近胸膜凹陷，其内可见条样钙化影。右肺上叶(S39、49)、下叶(S57、61、75、105)、中叶(S65、67、72)、左肺上叶(S34、57、66)、下叶(S75)可见多发散在磨玻璃密度结节影，大者径约0.97CM。双肺可见多发囊状透亮影，两肺门区未见异常。纵隔内可见多发肿大淋巴结影，大者短径约为1.96CM。两胸腔无积液征象。主动脉、冠状动脉走行区可见弧形致密影。</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4022,7 +4022,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>1.结合临床,右乳癌术后改变;肝内多发占位,结合临床,考虑转移,较前(2015-6-25)部分缩小,部分增大,但坏死成分增多;T1椎体不均匀骨质破坏,考虑转移,较前变化不著2.脂肪肝;3.右肾囊肿;4.腹膜后淋巴结肿大,较前变化不著;5.双肺小结节灶,较前变化不著,建议观察。右乳术后,术区壁未见增厚及异常强化。右侧腋窝结构紊乱,未见占位性病变。左乳及腋窝内未见异常密度灶。双侧内乳区、双侧肺门及纵隔未见增大淋巴结。双肺野内可见数个小结节灶,大者直径约0.6CM,边界欠清。肝脏密度普遍性减低,实质内见数个结节灶,大者直径约3.2CM,边缘有强化,部分内可见低密度坏死区。胆囊、胰腺、脾、左肾、肾上腺未见异常,右肾内示一囊性低密度灶,边界清。腹膜后胰头后方、门腔间隙、腹主动脉旁可见数个结节灶,大者短径约1.0CM。各咽壁不厚,双侧颈部未见肿大淋巴结影。腮腺及双侧甲状腺未见异常。骨窗显示T1椎体显示不均匀骨质破坏。</t>
+          <t>1.结合临床，右乳癌术后改变；肝内多发占位，结合临床，考虑转移，较前(2015-6-25)部分缩小，部分增大，但坏死成分增多；T1椎体不均匀骨质破坏，考虑转移，较前变化不著2.脂肪肝；3.右肾囊肿；4.腹膜后淋巴结肿大，较前变化不著；5.双肺小结节灶，较前变化不著，建议观察。右乳术后，术区壁未见增厚及异常强化。右侧腋窝结构紊乱，未见占位性病变。左乳及腋窝内未见异常密度灶。双侧内乳区、双侧肺门及纵隔未见增大淋巴结。双肺野内可见数个小结节灶，大者直径约0.6CM，边界欠清。肝脏密度普遍性减低，实质内见数个结节灶，大者直径约3.2CM，边缘有强化，部分内可见低密度坏死区。胆囊、胰腺、脾、左肾、肾上腺未见异常，右肾内示一囊性低密度灶，边界清。腹膜后胰头后方、门腔间隙、腹主动脉旁可见数个结节灶，大者短径约1.0CM。各咽壁不厚，双侧颈部未见肿大淋巴结影。腮腺及双侧甲状腺未见异常。骨窗显示T1椎体显示不均匀骨质破坏。</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4039,7 +4039,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>1.右肺下叶周围型肺癌较前2017-02-06相仿,伴双肺多发转移,部分较前相仿;2.右肺下叶间质性炎症,较前相仿;3.部分胸椎及邻近肋骨多发成骨性转移,较前相仿;4.所示甲状腺右叶病变,请结合相关检查;5.所示左肾囊肿。右肺下叶肿块,边缘毛刺,邻近胸膜牵拉,大小约为2.50CM×1.89CM,CT值约59HU,见血管集束。双肺内可见多发结节样及粟粒样密度影,大者径约0.4CM。右肺下叶斑片状高密度影,边界模糊。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。心脏大血管未见异常。部分上位胸椎椎体及附件密度增高。右乳腺钙化灶。所示甲状腺右叶增大,密度不均匀。所示左肾低密度灶。</t>
+          <t>1.右肺下叶周围型肺癌较前2017-02-06相仿，伴双肺多发转移，部分较前相仿；2.右肺下叶间质性炎症，较前相仿；3.部分胸椎及邻近肋骨多发成骨性转移，较前相仿；4.所示甲状腺右叶病变，请结合相关检查；5.所示左肾囊肿。右肺下叶肿块，边缘毛刺，邻近胸膜牵拉，大小约为2.50CM×1.89CM，CT值约59HU，见血管集束。双肺内可见多发结节样及粟粒样密度影，大者径约0.4CM。右肺下叶斑片状高密度影，边界模糊。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。心脏大血管未见异常。部分上位胸椎椎体及附件密度增高。右乳腺钙化灶。所示甲状腺右叶增大，密度不均匀。所示左肾低密度灶。</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4061,7 +4061,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>双侧胸廓不对称,右侧胸廓塌陷,右肺体积减小,右肺下叶见团块状高密度影,形态不规则,边界不清楚,大小约4.2CM×5.2CM,CT值约37HU,右侧主支气管及各叶支气管受压变窄;右侧胸膜弥漫性增厚,右肺间隔结节样增厚;右侧胸腔可见包裹性积液;右侧腋窝、纵隔淋巴结增大,大者短径约1.4CM。左肺下叶外基底段(S34)可见粟粒影。心影大小正常范围。右侧第2、4、6、7、8肋骨、胸3椎体骨质密度不均匀增高,形态不规整。右侧乳腺外上象限内见一结节影,径约1.0CM,边界清晰,其内见点状钙化。1.右下肺中心型肺癌,并右肺间质性改变,考虑淋巴道转移,右侧胸膜转移,右侧胸腔包裹性积液;右侧腋窝及纵隔淋巴结转移;右侧多个肋骨、胸3椎体成骨性转移;较2014.01.14CT相仿,请结合临床;2.右乳钙化结节,较前相仿;3.左肺下叶外基底段粟粒灶,较前相仿。</t>
+          <t>双侧胸廓不对称，右侧胸廓塌陷，右肺体积减小，右肺下叶见团块状高密度影，形态不规则，边界不清楚，大小约4.2CM×5.2CM，CT值约37HU，右侧主支气管及各叶支气管受压变窄；右侧胸膜弥漫性增厚，右肺间隔结节样增厚；右侧胸腔可见包裹性积液；右侧腋窝、纵隔淋巴结增大，大者短径约1.4CM。左肺下叶外基底段(S34)可见粟粒影。心影大小正常范围。右侧第2、4、6、7、8肋骨、胸3椎体骨质密度不均匀增高，形态不规整。右侧乳腺外上象限内见一结节影，径约1.0CM，边界清晰，其内见点状钙化。1.右下肺中心型肺癌，并右肺间质性改变，考虑淋巴道转移，右侧胸膜转移，右侧胸腔包裹性积液；右侧腋窝及纵隔淋巴结转移；右侧多个肋骨、胸3椎体成骨性转移；较2014.01.14CT相仿，请结合临床；2.右乳钙化结节，较前相仿；3.左肺下叶外基底段粟粒灶，较前相仿。</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4083,7 +4083,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>1.右肺门肿块,考虑肺癌可能,肿块由右肺上动脉供血,上腔静脉未见受侵,未见肺栓塞征象;2.双肺多发病变,纵隔淋巴结肿大,转移不除外,随诊;3.支气管炎,肺气肿;双侧胸膜增厚;4.心包增厚;5.部分椎体及肋骨、胸骨转移;双肺纹理稀疏,可见多发含气透亮影。右肺尖可见斑片状高密度影,边缘可见细毛刺,大小约为2.6CM×1.5CM,CT值约77HU,增强后可见明显强化;右肺下叶可见钙化影。左肺上叶舌段及左肺下叶內基底段可见片状高密度影。双肺可见多发小结节影。纵隔内可见多发增大的淋巴结;双胸腔无积液征象,双侧胸膜增厚。心脏不大,部分大血管见钙化斑。心包增厚。部分椎体及肋骨、胸骨可见多发斑片状致密影。血管重建示右肺上叶病灶由右肺上动脉供血,上腔静脉未见受侵,双侧肺动脉未见明显瘤栓形成。</t>
+          <t>1.右肺门肿块，考虑肺癌可能，肿块由右肺上动脉供血，上腔静脉未见受侵，未见肺栓塞征象；2.双肺多发病变，纵隔淋巴结肿大，转移不除外，随诊；3.支气管炎，肺气肿；双侧胸膜增厚；4.心包增厚；5.部分椎体及肋骨、胸骨转移；双肺纹理稀疏，可见多发含气透亮影。右肺尖可见斑片状高密度影，边缘可见细毛刺，大小约为2.6CM×1.5CM，CT值约77HU，增强后可见明显强化；右肺下叶可见钙化影。左肺上叶舌段及左肺下叶內基底段可见片状高密度影。双肺可见多发小结节影。纵隔内可见多发增大的淋巴结；双胸腔无积液征象，双侧胸膜增厚。心脏不大，部分大血管见钙化斑。心包增厚。部分椎体及肋骨、胸骨可见多发斑片状致密影。血管重建示右肺上叶病灶由右肺上动脉供血，上腔静脉未见受侵，双侧肺动脉未见明显瘤栓形成。</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4105,7 +4105,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>1.结合临床,左乳癌治疗后改变,胸肌局部强化灶,较前(2016-11-7)增大,考虑转移;左腋窝及左锁骨上小淋巴结;肝转移治疗后,变化不著;骨转移,变化不著2.右乳钙化灶;右腋窝略增大淋巴结,变化不著3.双肺纤维灶4.甲状腺低密度灶5.颅脑CT扫描未见明显异常左乳结构紊乱,强化欠均质,局部见可见片状较低密度灶,边缘清晰,左腋窝结构紊乱并可见片状影,左腋窝(5-21)及左侧锁骨上示大者短径约0.5CM小淋巴结。左侧胸肌局部见结节状强化灶(如5-11、14),边缘模糊,大者长径约3.1CM。右乳可见数个大小不一的钙化灶,右腋窝内可见数个结节灶,大者短径约0.6CM。双肺内示少许索条影。纵隔内未见明显肿大淋巴结。甲状腺内示低密度灶。肝内S4段示一低密度灶,边缘有强化,直径约0.6CM。余肝内示小类囊性密度灶。胆囊胰脾双肾未见异常。腹腔及腹膜后未见肿大淋巴结。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。胸骨、部分椎骨及左第五后肋显示骨质破坏。</t>
+          <t>1.结合临床，左乳癌治疗后改变，胸肌局部强化灶，较前(2016-11-7)增大，考虑转移；左腋窝及左锁骨上小淋巴结；肝转移治疗后，变化不著；骨转移，变化不著2.右乳钙化灶；右腋窝略增大淋巴结，变化不著3.双肺纤维灶4.甲状腺低密度灶5.颅脑CT扫描未见明显异常左乳结构紊乱，强化欠均质，局部见可见片状较低密度灶，边缘清晰，左腋窝结构紊乱并可见片状影，左腋窝(5-21)及左侧锁骨上示大者短径约0.5CM小淋巴结。左侧胸肌局部见结节状强化灶(如5-11、14)，边缘模糊，大者长径约3.1CM。右乳可见数个大小不一的钙化灶，右腋窝内可见数个结节灶，大者短径约0.6CM。双肺内示少许索条影。纵隔内未见明显肿大淋巴结。甲状腺内示低密度灶。肝内S4段示一低密度灶，边缘有强化，直径约0.6CM。余肝内示小类囊性密度灶。胆囊胰脾双肾未见异常。腹腔及腹膜后未见肿大淋巴结。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。胸骨、部分椎骨及左第五后肋显示骨质破坏。</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4122,7 +4122,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>1.结合临床,左乳癌治疗后改变,胸肌局部强化结节灶,建议观察2.肝转移瘤,较前缩小;胸骨、肋骨转移2.右腋窝略增大淋巴结左乳结构紊乱,局部见可见片状较低密度灶,边缘清晰,增强后强化不著。左侧胸肌局部似见强化结节灶(5-7、10),边缘模糊,大者直径约1.1CM。右乳可见数个大小不一的钙化灶,右腋窝内可见数个结节灶,大者短径约0.6CM。双肺野清,其内未见异常密度影。纵隔内未见明显肿大淋巴结。肝内S4段示一低密度灶,边缘有强化,直径约0.6CM。余肝实质未见异常。胆囊胰脾双肾未见异常。腹腔及腹膜后未见明显肿大淋巴结。胸骨、左第五后肋显示骨质破坏。</t>
+          <t>1.结合临床，左乳癌治疗后改变，胸肌局部强化结节灶，建议观察2.肝转移瘤，较前缩小；胸骨、肋骨转移2.右腋窝略增大淋巴结左乳结构紊乱，局部见可见片状较低密度灶，边缘清晰，增强后强化不著。左侧胸肌局部似见强化结节灶(5-7、10)，边缘模糊，大者直径约1.1CM。右乳可见数个大小不一的钙化灶，右腋窝内可见数个结节灶，大者短径约0.6CM。双肺野清，其内未见异常密度影。纵隔内未见明显肿大淋巴结。肝内S4段示一低密度灶，边缘有强化，直径约0.6CM。余肝实质未见异常。胆囊胰脾双肾未见异常。腹腔及腹膜后未见明显肿大淋巴结。胸骨、左第五后肋显示骨质破坏。</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4139,7 +4139,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>左肺下叶见不规则团块影,呈浅分叶,与邻近胸膜关系密切,较大截面约5.2CM×4.5CM,其内密度欠均匀,CT值约16HU。右肺上叶(HR178)、左肺上叶(169)见高密度结节影,边界清晰,大者径约0.7CM。两肺支气管血管束模糊,双肺另见多发条索影。两肺门区未见异常。纵隔内未见多发小淋巴结,大者短径约0.75CM。两胸腔无积液征象。心脏大血管未见异常。双侧甲状腺密度不均匀减低,甲状腺左叶见结节样致密影。1.左肺下叶周围型肺癌,双肺上叶小结节,转移不除外,请结合临床、详查;2.支气管炎征象,双肺多发条索灶;3.所示双侧甲状腺病变,请结合相关检查。</t>
+          <t>左肺下叶见不规则团块影，呈浅分叶，与邻近胸膜关系密切，较大截面约5.2CM×4.5CM，其内密度欠均匀，CT值约16HU。右肺上叶(HR178)、左肺上叶(169)见高密度结节影，边界清晰，大者径约0.7CM。两肺支气管血管束模糊，双肺另见多发条索影。两肺门区未见异常。纵隔内未见多发小淋巴结，大者短径约0.75CM。两胸腔无积液征象。心脏大血管未见异常。双侧甲状腺密度不均匀减低，甲状腺左叶见结节样致密影。1.左肺下叶周围型肺癌，双肺上叶小结节，转移不除外，请结合临床、详查；2.支气管炎征象，双肺多发条索灶；3.所示双侧甲状腺病变，请结合相关检查。</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4161,7 +4161,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>右肺上叶可见团块状高密度影,较大截面大小约5.87CM×5.39CM,边缘可见浅分叶,平扫CT值约32HU,增强扫描呈不均匀强化,右肺上叶尖段支气管闭塞,前段及后段支气管管壁略厚,管腔狭窄,上腔静脉受压、管腔狭窄;双肺多发索条灶,左肺下叶见条片状模糊影;左肺下叶近斜裂(56)可见小结节影,径约0.3CM。双肺见多发含气空腔。纵隔内可见增大的淋巴结,部分融合,短径约1.76CM;右侧锁骨上淋巴结增大,大者短径约0.8CM。右侧胸腔可见弧形液体密度影。心包内可见环形液体密度影,大血管未见异常。1.右肺上叶团块影,考虑中央型肺癌,较前2016-11-18CT相仿,纵隔、右侧锁骨上淋巴结转移,较前变化不大;上腔静脉管腔狭窄,较前相仿;请结合临床;2.双肺肺气肿;双肺索条灶;左肺下叶少许炎性改变,较前相仿;3.心包积液,较前相仿;4.左侧斜裂小结节,较前相仿;5.右侧胸腔积液,较前新发。</t>
+          <t>右肺上叶可见团块状高密度影，较大截面大小约5.87CM×5.39CM，边缘可见浅分叶，平扫CT值约32HU，增强扫描呈不均匀强化，右肺上叶尖段支气管闭塞，前段及后段支气管管壁略厚，管腔狭窄，上腔静脉受压、管腔狭窄；双肺多发索条灶，左肺下叶见条片状模糊影；左肺下叶近斜裂(56)可见小结节影，径约0.3CM。双肺见多发含气空腔。纵隔内可见增大的淋巴结，部分融合，短径约1.76CM；右侧锁骨上淋巴结增大，大者短径约0.8CM。右侧胸腔可见弧形液体密度影。心包内可见环形液体密度影，大血管未见异常。1.右肺上叶团块影，考虑中央型肺癌，较前2016-11-18CT相仿，纵隔、右侧锁骨上淋巴结转移，较前变化不大；上腔静脉管腔狭窄，较前相仿；请结合临床；2.双肺肺气肿；双肺索条灶；左肺下叶少许炎性改变，较前相仿；3.心包积液，较前相仿；4.左侧斜裂小结节，较前相仿；5.右侧胸腔积液，较前新发。</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4183,7 +4183,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>右肺下叶可见不规则稍低密度影,与右肺门分界不清,边缘毛糙,CT值约为37HU,其内密度不均,大小约为3.8CM×2.6CM,邻近肺组织可见模糊影,右肺下叶内基底段支气管截断,右肺胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影,边缘毛糙,大者径约为0.79CM;纵隔内未见增大淋巴结影。右侧胸腔、心包内见少许液性密度影。甲状腺明显肿大。1右肺下叶肺癌,并双肺、右胸膜多发转移,与2015-06-23CT片对比,肿块略减小,双肺多发转移较前减少、减小;右侧胸腔积液,较前减少;心包积液,较前相仿;2.甲状腺饱满。</t>
+          <t>右肺下叶可见不规则稍低密度影，与右肺门分界不清，边缘毛糙，CT值约为37HU，其内密度不均，大小约为3.8CM×2.6CM，邻近肺组织可见模糊影，右肺下叶内基底段支气管截断，右肺胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影，边缘毛糙，大者径约为0.79CM；纵隔内未见增大淋巴结影。右侧胸腔、心包内见少许液性密度影。甲状腺明显肿大。1右肺下叶肺癌，并双肺、右胸膜多发转移，与2015-06-23CT片对比，肿块略减小，双肺多发转移较前减少、减小；右侧胸腔积液，较前减少；心包积液，较前相仿；2.甲状腺饱满。</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4205,7 +4205,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>左乳术后,术区壁未见增厚及异常强化。左侧腋窝结构紊乱,未见异常强化灶。右乳及右侧腋窝未见异常密度灶。纵隔内2R、2L、4R、4L、7区及双肺门示多发结节灶,大者短径约0.7CM。双肺野内散在多发结节灶,大者短径约1.6CM。胸廓骨质未见破坏。肝内散在多发结节灶及肿块影,边缘强化,大者直径约5.7CM。胆囊、胰腺、脾、双肾、肾上腺未见异常,腹腔肝门区、腹膜后门腔间隙、腹主动脉旁示多发结节灶,大者短径约1.4CM。结合临床,左乳癌术后改变;双肺多发转移;肝多发转移;腹腔腹膜后淋巴结转移;纵隔淋巴结略增大</t>
+          <t>左乳术后，术区壁未见增厚及异常强化。左侧腋窝结构紊乱，未见异常强化灶。右乳及右侧腋窝未见异常密度灶。纵隔内2R、2L、4R、4L、7区及双肺门示多发结节灶，大者短径约0.7CM。双肺野内散在多发结节灶，大者短径约1.6CM。胸廓骨质未见破坏。肝内散在多发结节灶及肿块影，边缘强化，大者直径约5.7CM。胆囊、胰腺、脾、双肾、肾上腺未见异常，腹腔肝门区、腹膜后门腔间隙、腹主动脉旁示多发结节灶，大者短径约1.4CM。结合临床，左乳癌术后改变；双肺多发转移；肝多发转移；腹腔腹膜后淋巴结转移；纵隔淋巴结略增大</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4222,7 +4222,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>1.右肺上叶结节,纵隔内、右肺门多发肿大淋巴结,考虑右上肺癌伴肺门及纵隔淋巴结转移,较前片(2017-1-9)未见明显变化,请结合临床;2.支气管炎,肺气肿,双肺轻度间质性改变;3.右肺上叶粟粒灶,双肺下叶小结节,请随诊;4.肝囊肿;5.右侧肾上腺结节,考虑腺瘤可能,请随诊。双肺支气管血管束稍增强,双肺胸膜下小叶间隔增厚,呈网格状改变,双肺胸膜下可见多发类圆形透亮影。右肺上叶见高密度结节影,长径约1.54CM,边缘毛糙,分叶状,平扫CT值约-13HU,增强后三期CT值约37、12、13HU。右肺上叶前段(23)可见粟粒影;右肺下叶后基底段(60)、左肺下叶后基底段(44)可见结节影,大者径约0.5CM;所示气管支气管影通畅。纵隔、右肺门见多发肿大淋巴结影,大者短径约3.4CM,平扫CT值约40HU,增强后均匀强化,三期CT值约74、66、68HU。两胸腔未见积液征象。心脏不大,主动脉管壁可见弧形致密影。所示肝内见多发类圆形低密度影,增强后未见强化。右侧肾上腺见低密度结节影,径约1.9CM,平扫CT值约19HU,增强后三期CT值约38、58、35HU。</t>
+          <t>1.右肺上叶结节，纵隔内、右肺门多发肿大淋巴结，考虑右上肺癌伴肺门及纵隔淋巴结转移，较前片(2017-1-9)未见明显变化，请结合临床；2.支气管炎，肺气肿，双肺轻度间质性改变；3.右肺上叶粟粒灶，双肺下叶小结节，请随诊；4.肝囊肿；5.右侧肾上腺结节，考虑腺瘤可能，请随诊。双肺支气管血管束稍增强，双肺胸膜下小叶间隔增厚，呈网格状改变，双肺胸膜下可见多发类圆形透亮影。右肺上叶见高密度结节影，长径约1.54CM，边缘毛糙，分叶状，平扫CT值约-13HU，增强后三期CT值约37、12、13HU。右肺上叶前段(23)可见粟粒影；右肺下叶后基底段(60)、左肺下叶后基底段(44)可见结节影，大者径约0.5CM；所示气管支气管影通畅。纵隔、右肺门见多发肿大淋巴结影，大者短径约3.4CM，平扫CT值约40HU，增强后均匀强化，三期CT值约74、66、68HU。两胸腔未见积液征象。心脏不大，主动脉管壁可见弧形致密影。所示肝内见多发类圆形低密度影，增强后未见强化。右侧肾上腺见低密度结节影，径约1.9CM，平扫CT值约19HU，增强后三期CT值约38、58、35HU。</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4244,7 +4244,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>1.左下肺周围型肺癌,对比2012-08-15片,病变略增大;左侧膈胸膜局限性增厚,较前片新发;左肺上叶舌段、右肺下叶后基底段片状模糊影,较前片增大;2.纵隔多发增大淋巴结,对比前片变化不大;3.胸椎、左侧肋骨、胸骨及右侧锁骨多发转移;4.甲状腺占位,腹部改变,请详查。双肺透过度欠均,左下肺可见一肿块影,不规则,边界尚清,最大层面3.79CM×2.41CM,CT值约19HU,局部斜裂牵拉征象;左肺下叶基底段部分支气管略窄;左肺上叶舌段、右肺下叶基底段可见片状化模糊影。纵隔见多发小淋巴结,大者短径约0.76CM。右侧膈胸膜局限性增厚,局部椎体及肋骨密度不均匀。心脏大血管未见异常。右侧锁骨、胸骨、第3胸椎左侧横突、第4、5、7、8、10胸椎椎体内可见结节状高密度影,第11胸椎椎体骨质密度不均匀减低,左侧第4、5、7后肋骨质密度增高。甲状腺左叶见类圆形低密度影,边界欠清,大小约为0.85CM,CT值约为28HU。肝右叶多发低密度灶,右侧肾上腺区可见软组织密度影。左侧肾上腺内支似见结节影。</t>
+          <t>1.左下肺周围型肺癌，对比2012-08-15片，病变略增大；左侧膈胸膜局限性增厚，较前片新发；左肺上叶舌段、右肺下叶后基底段片状模糊影，较前片增大；2.纵隔多发增大淋巴结，对比前片变化不大；3.胸椎、左侧肋骨、胸骨及右侧锁骨多发转移；4.甲状腺占位，腹部改变，请详查。双肺透过度欠均，左下肺可见一肿块影，不规则，边界尚清，最大层面3.79CM×2.41CM，CT值约19HU，局部斜裂牵拉征象；左肺下叶基底段部分支气管略窄；左肺上叶舌段、右肺下叶基底段可见片状化模糊影。纵隔见多发小淋巴结，大者短径约0.76CM。右侧膈胸膜局限性增厚，局部椎体及肋骨密度不均匀。心脏大血管未见异常。右侧锁骨、胸骨、第3胸椎左侧横突、第4、5、7、8、10胸椎椎体内可见结节状高密度影，第11胸椎椎体骨质密度不均匀减低，左侧第4、5、7后肋骨质密度增高。甲状腺左叶见类圆形低密度影，边界欠清，大小约为0.85CM，CT值约为28HU。肝右叶多发低密度灶，右侧肾上腺区可见软组织密度影。左侧肾上腺内支似见结节影。</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4266,7 +4266,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>1.结合临床,右乳癌术后改变;肝内多发占位,考虑转移,较前(2015-08-12)片部分略增大,部分变化不著;腰椎L1椎体不均匀骨质破坏,考虑转移,较前变化不著2.脂肪肝3.右肾囊肿4.腹膜后淋巴结肿大,较前部分略缩小,部分略饱满,总体变化不著5.双肺略示类结节灶,较前变化不著6.双肺纤维灶右乳术后,术区壁未见增厚及异常强化。右侧腋窝结构紊乱,未见占位性病变。左乳及腋窝内未见异常密度灶。双侧内乳区、双侧肺门及纵隔未见增大淋巴结。双肺野内略示类结节影(图5-19等)。双肺并可见少许高密度条索影。肝脏密度普遍性减低,实质内见数个结节灶,大者直径约3.5CM,边缘有强化,部分内可见低密度坏死区。胆囊、胰腺、脾、左肾、肾上腺未见异常,右肾内示一囊性低密度灶,边界清。腹膜后胰头后方、门腔间隙、腹主动脉旁可见数个结节灶,大者短径约0.9CM。骨窗显示腰椎L1椎体显示不均匀骨质破坏。</t>
+          <t>1.结合临床，右乳癌术后改变；肝内多发占位，考虑转移，较前(2015-08-12)片部分略增大，部分变化不著；腰椎L1椎体不均匀骨质破坏，考虑转移，较前变化不著2.脂肪肝3.右肾囊肿4.腹膜后淋巴结肿大，较前部分略缩小，部分略饱满，总体变化不著5.双肺略示类结节灶，较前变化不著6.双肺纤维灶右乳术后，术区壁未见增厚及异常强化。右侧腋窝结构紊乱，未见占位性病变。左乳及腋窝内未见异常密度灶。双侧内乳区、双侧肺门及纵隔未见增大淋巴结。双肺野内略示类结节影(图5-19等)。双肺并可见少许高密度条索影。肝脏密度普遍性减低，实质内见数个结节灶，大者直径约3.5CM，边缘有强化，部分内可见低密度坏死区。胆囊、胰腺、脾、左肾、肾上腺未见异常，右肾内示一囊性低密度灶，边界清。腹膜后胰头后方、门腔间隙、腹主动脉旁可见数个结节灶，大者短径约0.9CM。骨窗显示腰椎L1椎体显示不均匀骨质破坏。</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4283,7 +4283,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>对比2011-06-14CT:1.右肺下叶不规则结节,考虑周围型肺癌,较前体积增大;2.双肺散在炎症,右肺为著,右肺间质纤维化;较前进展;3.双肺上叶陈旧性病变;较前相仿;4.胸骨、部分胸椎及双侧肋骨多发转移,较前新发;5.降主动脉管壁钙化,部分钙化斑内移;较前变化不大,请随诊。双肺纹理增强,右肺小叶间隔增厚、紊乱;双肺内见多发斑片状模糊高密度影,以右肺为著,右肺下叶后基底段可见一结节样高密度影,分叶、毛刺,邻近血管可见束集,病变大小约为2.8CM×1.9CM;双肺上叶见结节状及索条状高密度影;所示气管支气管影正常。纵隔内未见异常增大的淋巴结。双侧胸膜增厚;两胸腔无积液征象。心脏不大,降主动脉管壁见钙化影,部分钙化斑内移。胸骨、部分胸椎及双侧肋骨见斑片状高密度影。</t>
+          <t>对比2011-06-14CT：1.右肺下叶不规则结节，考虑周围型肺癌，较前体积增大；2.双肺散在炎症，右肺为著，右肺间质纤维化；较前进展；3.双肺上叶陈旧性病变；较前相仿；4.胸骨、部分胸椎及双侧肋骨多发转移，较前新发；5.降主动脉管壁钙化，部分钙化斑内移；较前变化不大，请随诊。双肺纹理增强，右肺小叶间隔增厚、紊乱；双肺内见多发斑片状模糊高密度影，以右肺为著，右肺下叶后基底段可见一结节样高密度影，分叶、毛刺，邻近血管可见束集，病变大小约为2.8CM×1.9CM；双肺上叶见结节状及索条状高密度影；所示气管支气管影正常。纵隔内未见异常增大的淋巴结。双侧胸膜增厚；两胸腔无积液征象。心脏不大，降主动脉管壁见钙化影，部分钙化斑内移。胸骨、部分胸椎及双侧肋骨见斑片状高密度影。</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4305,7 +4305,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>1.右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移,肿块较2014-07-23增大;2.右肺下叶炎症,较前相仿;3.所示多发骨转移征象,右侧第10后肋病理性骨折,胸2椎体内及胸骨柄内病灶较前范围增大,密度增高。右肺下叶背段(S29)见类圆形肿块影,约2.12CM×1.82CM,边缘不规整,可见多发毛刺影,并见血管影进入,牵拉邻近胸膜,其CT值约35HU。右肺下叶见斑片影(S37)。右肺门区及纵隔内可见多发肿大淋巴结影,大者短径约2.14CM,双侧胸腔未见积液征象。心脏大血管未见异常。双侧第10后肋、胸骨柄及胸骨体内可见高密度影,胸2椎体内可见结节状高密度影,胸2附件骨质可见溶骨性破坏区。</t>
+          <t>1.右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移，肿块较2014-07-23增大；2.右肺下叶炎症，较前相仿；3.所示多发骨转移征象，右侧第10后肋病理性骨折，胸2椎体内及胸骨柄内病灶较前范围增大，密度增高。右肺下叶背段(S29)见类圆形肿块影，约2.12CM×1.82CM，边缘不规整，可见多发毛刺影，并见血管影进入，牵拉邻近胸膜，其CT值约35HU。右肺下叶见斑片影(S37)。右肺门区及纵隔内可见多发肿大淋巴结影，大者短径约2.14CM，双侧胸腔未见积液征象。心脏大血管未见异常。双侧第10后肋、胸骨柄及胸骨体内可见高密度影，胸2椎体内可见结节状高密度影，胸2附件骨质可见溶骨性破坏区。</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4327,7 +4327,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>1.左乳占位,考虑乳癌,左腋窝淋巴结转移2.左乳局部腺体致密、强化显著,建议进一步检查2.双肺类结节灶,建议观察;双肺钙化灶左乳外下象限可见不规则结节灶,大小约1.8CM×0.9CM,边缘分叶,增强扫描呈较显著强化。另左乳内上象限腺体较致密,增强扫描强化较著。左腋窝示肿大淋巴结,短径约1.6CM。右乳未见异常。右腋窝、内乳及纵隔未见明显肿大淋巴结。双肺示少许类结节影(图3-24、39等),边缘模糊。余双肺野示少许钙化灶。</t>
+          <t>1.左乳占位，考虑乳癌，左腋窝淋巴结转移2.左乳局部腺体致密、强化显著，建议进一步检查2.双肺类结节灶，建议观察；双肺钙化灶左乳外下象限可见不规则结节灶，大小约1.8CM×0.9CM，边缘分叶，增强扫描呈较显著强化。另左乳内上象限腺体较致密，增强扫描强化较著。左腋窝示肿大淋巴结，短径约1.6CM。右乳未见异常。右腋窝、内乳及纵隔未见明显肿大淋巴结。双肺示少许类结节影(图3-24、39等)，边缘模糊。余双肺野示少许钙化灶。</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4349,7 +4349,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>左肺上叶舌段及下叶基底段可见不规则团块影,大者约2.94CM×2.16CM,CT值约40HU,周围可见血管集束征及毛刺征。双肺可见多发结节影,大者径约2.5CM。双肺门、纵隔内可见多发肿大淋巴结影。双侧胸腔内见液性密度影。冠脉可见致密影。颈7-胸1椎可见低密度影。1、左肺上叶肺癌,双肺门、纵隔淋巴结转移,双肺多发转移瘤,两肺淋巴道转移,对比2017.1.16片进展;2、双侧胸腔积液,较前新发;3、所示颈7-胸1溶骨性转移。</t>
+          <t>左肺上叶舌段及下叶基底段可见不规则团块影，大者约2.94CM×2.16CM，CT值约40HU，周围可见血管集束征及毛刺征。双肺可见多发结节影，大者径约2.5CM。双肺门、纵隔内可见多发肿大淋巴结影。双侧胸腔内见液性密度影。冠脉可见致密影。颈7-胸1椎可见低密度影。1、左肺上叶肺癌，双肺门、纵隔淋巴结转移，双肺多发转移瘤，两肺淋巴道转移，对比2017.1.16片进展；2、双侧胸腔积液，较前新发；3、所示颈7-胸1溶骨性转移。</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4371,7 +4371,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>左乳术后缺如,部分胸肌存在,术区皮肤及软组织略增厚,增强后不均匀强化;左侧腋窝术后,见多发淋巴结,大者短径约0.6CM。右乳及右侧腋窝未见明确异常。左侧内乳区见短径不足0.5CM小淋巴结。左肺上叶胸膜下可见类结节灶,直径约0.2CM。左肺下叶(5-56)见小类结节,直径不足0.5CM。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。胸腔内未见积液。胸廓诸骨未见骨质破坏。肝脏形态、大小可,实质内未见异常。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺未见异常。右肾见斑片状低密度,边缘欠清。腹膜后见短径不足0.5CM小淋巴结。部分椎体密度减低。1.左乳癌术后复发并左腋窝多发淋巴结转移,较前(2016-11-8)均好转;左侧内乳区小淋巴结2.左肺上叶结节灶,较前缩小;左肺下叶小类结节,建议观察3.右肾低密度灶,建议观察;腹膜后小淋巴结4.椎体部分密度减低,请结合临床</t>
+          <t>左乳术后缺如，部分胸肌存在，术区皮肤及软组织略增厚，增强后不均匀强化；左侧腋窝术后，见多发淋巴结，大者短径约0.6CM。右乳及右侧腋窝未见明确异常。左侧内乳区见短径不足0.5CM小淋巴结。左肺上叶胸膜下可见类结节灶，直径约0.2CM。左肺下叶(5-56)见小类结节，直径不足0.5CM。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。胸腔内未见积液。胸廓诸骨未见骨质破坏。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺未见异常。右肾见斑片状低密度，边缘欠清。腹膜后见短径不足0.5CM小淋巴结。部分椎体密度减低。1.左乳癌术后复发并左腋窝多发淋巴结转移，较前(2016-11-8)均好转；左侧内乳区小淋巴结2.左肺上叶结节灶，较前缩小；左肺下叶小类结节，建议观察3.右肾低密度灶，建议观察；腹膜后小淋巴结4.椎体部分密度减低，请结合临床</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4388,7 +4388,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>右肺上叶尖段支气管周围可见异常密度结节影,呈分叶状,最大断面大小约为2.6CM×2.1CM,CT值约为34HU;双肺野可见多个高密度粟粒影与小结节影,大小不一;两肺门区未见异常;所示气管支气管影正常;纵隔内见异常增大的淋巴结;两胸腔无积液征象;心脏大血管未见异常。右肺上叶尖段周围型肺癌,纵隔淋巴结转移,双肺多发粟粒灶与小结节,考虑转移可能性大,随诊。</t>
+          <t>右肺上叶尖段支气管周围可见异常密度结节影，呈分叶状，最大断面大小约为2.6CM×2.1CM，CT值约为34HU；双肺野可见多个高密度粟粒影与小结节影，大小不一；两肺门区未见异常；所示气管支气管影正常；纵隔内见异常增大的淋巴结；两胸腔无积液征象；心脏大血管未见异常。右肺上叶尖段周围型肺癌，纵隔淋巴结转移，双肺多发粟粒灶与小结节，考虑转移可能性大，随诊。</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4410,7 +4410,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>1.右乳癌术后改变,多发肝转移瘤,多发骨转移瘤,颅脑多发转移2.左乳内多发结节灶,转移不能除外3.双肺炎症及纤维灶,双侧胸腔及心包腔内少量积液4.左肺类结节灶,建议观察5.纵隔淋巴结肿大6.胆囊炎7.右肾小囊肿右乳术后缺如,部分胸肌存在,术区未见明显增厚及异常强化;右侧腋窝术后,结构紊乱。左乳内可见散在多发强化结节灶,边界较清晰,大者直径约1.0CM,增强后呈显著强化。左侧腋窝未见明确异常。双肺内可见散在片絮状及条索状密度增高影;左肺内可见散在类结节灶,边界较模糊。双侧各叶、段支气管通畅。纵隔内2R及3A可见肿大淋巴结,大者短径约0.7CM。双侧胸腔内及心包腔内可见少量液性密度影。肝脏实质内可见散在多发类圆形低密度灶,边缘较模糊,大者直径约1.3CM,轻度强化。胆囊壁增厚并强化。胰、脾、左肾及双侧肾上腺未见异常;右肾实质内可见散在小囊性密度灶,边界清晰,未见强化。腹腔及腹膜后未见明显肿大淋巴结。膀胱充盈可,壁不厚。子宫形态大小密度可,宫颈略增大,未见异常强化。盆腔内未见积液及肿大淋巴结。鼻咽、口咽及喉形态可,诸壁不厚。双侧副鼻窦充气良好。甲状腺双侧叶形态大小密度可。双颈部肌间隙清晰,未见明显肿大淋巴结。颅脑实质内可见散在多发软组织密度灶,边界较清晰,大者直径约1.7CM,增强后呈较显著不均质强化,部分周围可见低密度水肿带。脑室、池无扩张,脑沟、裂无增深,中线结构居中。颅骨诸骨质未见破坏。骨窗示:胸骨、双侧锁骨头、双侧肱骨头、双侧肩胛骨、多发肋骨、多发颈胸腰椎椎体、双侧髂骨、骶骨、耻骨、坐骨、双侧股骨头示成骨性骨质破坏。</t>
+          <t>1.右乳癌术后改变，多发肝转移瘤，多发骨转移瘤，颅脑多发转移2.左乳内多发结节灶，转移不能除外3.双肺炎症及纤维灶，双侧胸腔及心包腔内少量积液4.左肺类结节灶，建议观察5.纵隔淋巴结肿大6.胆囊炎7.右肾小囊肿右乳术后缺如，部分胸肌存在，术区未见明显增厚及异常强化；右侧腋窝术后，结构紊乱。左乳内可见散在多发强化结节灶，边界较清晰，大者直径约1.0CM，增强后呈显著强化。左侧腋窝未见明确异常。双肺内可见散在片絮状及条索状密度增高影；左肺内可见散在类结节灶，边界较模糊。双侧各叶、段支气管通畅。纵隔内2R及3A可见肿大淋巴结，大者短径约0.7CM。双侧胸腔内及心包腔内可见少量液性密度影。肝脏实质内可见散在多发类圆形低密度灶，边缘较模糊，大者直径约1.3CM，轻度强化。胆囊壁增厚并强化。胰、脾、左肾及双侧肾上腺未见异常；右肾实质内可见散在小囊性密度灶，边界清晰，未见强化。腹腔及腹膜后未见明显肿大淋巴结。膀胱充盈可，壁不厚。子宫形态大小密度可，宫颈略增大，未见异常强化。盆腔内未见积液及肿大淋巴结。鼻咽、口咽及喉形态可，诸壁不厚。双侧副鼻窦充气良好。甲状腺双侧叶形态大小密度可。双颈部肌间隙清晰，未见明显肿大淋巴结。颅脑实质内可见散在多发软组织密度灶，边界较清晰，大者直径约1.7CM，增强后呈较显著不均质强化，部分周围可见低密度水肿带。脑室、池无扩张，脑沟、裂无增深，中线结构居中。颅骨诸骨质未见破坏。骨窗示：胸骨、双侧锁骨头、双侧肱骨头、双侧肩胛骨、多发肋骨、多发颈胸腰椎椎体、双侧髂骨、骶骨、耻骨、坐骨、双侧股骨头示成骨性骨质破坏。</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4427,7 +4427,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>双肺密度不均匀略减低,见透亮影及多发壁薄界清无肺纹理区。双肺纹理稀疏、模糊。右肺体积小;右肺内散在小片状高密度灶,边界模糊及多发蜂窝状透亮区;右上肺纵隔旁可见软组织团块影,边界欠光整,CT值约35HU,最大层面约6.23CM×4.60CM,其内见多发空洞及充气支气管征,空洞内壁欠规整,右肺上叶部分支气管受阻断,部分病灶纵隔窗可见钙化灶;纵隔右移、右肺门大,纵隔内可见多个增大的淋巴结,大者短径约1.13CM。双侧胸膜增厚。主动脉及冠状动脉内可见条片状致密影1.考虑右上肺癌(空洞形成)并右上肺阻塞性肺炎,纵隔与右肺门淋巴结转移;2.慢性支气管炎、肺气肿、肺大泡;3.双侧胸膜肥厚;4.胆囊结石。</t>
+          <t>双肺密度不均匀略减低，见透亮影及多发壁薄界清无肺纹理区。双肺纹理稀疏、模糊。右肺体积小；右肺内散在小片状高密度灶，边界模糊及多发蜂窝状透亮区；右上肺纵隔旁可见软组织团块影，边界欠光整，CT值约35HU，最大层面约6.23CM×4.60CM，其内见多发空洞及充气支气管征，空洞内壁欠规整，右肺上叶部分支气管受阻断，部分病灶纵隔窗可见钙化灶；纵隔右移、右肺门大，纵隔内可见多个增大的淋巴结，大者短径约1.13CM。双侧胸膜增厚。主动脉及冠状动脉内可见条片状致密影1.考虑右上肺癌(空洞形成)并右上肺阻塞性肺炎，纵隔与右肺门淋巴结转移；2.慢性支气管炎、肺气肿、肺大泡；3.双侧胸膜肥厚；4.胆囊结石。</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4449,7 +4449,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>左肺上叶脊柱旁见团片状软组织密度影,边缘呈浅分叶,范围约6.5CM×6.0CM,其内密度不均,CT值约20-40HU,增强以后三期CT值约60HU、75HU、64HU,主动脉弓部分受包绕。左肺上叶见数个小结节,直径约0.3CM。两肺纹理增强。所示气管支气管影正常。纵隔内见多个稍大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。1.左肺上叶团片灶,考虑周围型肺癌可能性大;纵隔内见多个稍大的淋巴结,请详查;2.左肺上叶小结节,转移不除外,请结合临床。3.右侧一后肋不整。</t>
+          <t>左肺上叶脊柱旁见团片状软组织密度影，边缘呈浅分叶，范围约6.5CM×6.0CM，其内密度不均，CT值约20-40HU，增强以后三期CT值约60HU、75HU、64HU，主动脉弓部分受包绕。左肺上叶见数个小结节，直径约0.3CM。两肺纹理增强。所示气管支气管影正常。纵隔内见多个稍大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。1.左肺上叶团片灶，考虑周围型肺癌可能性大；纵隔内见多个稍大的淋巴结，请详查；2.左肺上叶小结节，转移不除外，请结合临床。3.右侧一后肋不整。</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4471,7 +4471,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>右肺下叶背段支气管截断,管壁外见不规则软组织密度肿块,边缘分叶状,不均匀强化,约60MM×41MM(IM29);与肺门肿大淋巴结融合,包绕基底干支气管及部分中间段支气管,与中叶支气管近段关系密切,与右下肺动静脉关系密切;远端肺野见结节及斑片影。双上肺胸膜下见模糊结节(IM13、14)。纵隔2、4、7、9组见多发肿大淋巴结,较大约25MM×19MM(IM26)。锁骨上未见肿大淋巴结。双侧胸膜较光滑,未见胸水。扫描所及诸骨未见骨质破坏灶。扫及肝实质见多个模糊低强化小结节,左肾上腺可疑结节(IM56)。右肺下叶背段支气管截断伴软组织肿物,中心型肺癌可能大。远端肺转移,阻塞性改变。右肺门纵隔多发肿大淋巴结,考虑转移。双上肺胸膜下模糊小结节,性质待定。肝内多发模糊低强化结节,左肾上腺可疑结节;转移不除外,建议详查腹部。</t>
+          <t>右肺下叶背段支气管截断，管壁外见不规则软组织密度肿块，边缘分叶状，不均匀强化，约60MM×41MM(IM29)；与肺门肿大淋巴结融合，包绕基底干支气管及部分中间段支气管，与中叶支气管近段关系密切，与右下肺动静脉关系密切；远端肺野见结节及斑片影。双上肺胸膜下见模糊结节(IM13、14)。纵隔2、4、7、9组见多发肿大淋巴结，较大约25MM×19MM(IM26)。锁骨上未见肿大淋巴结。双侧胸膜较光滑，未见胸水。扫描所及诸骨未见骨质破坏灶。扫及肝实质见多个模糊低强化小结节，左肾上腺可疑结节(IM56)。右肺下叶背段支气管截断伴软组织肿物，中心型肺癌可能大。远端肺转移，阻塞性改变。右肺门纵隔多发肿大淋巴结，考虑转移。双上肺胸膜下模糊小结节，性质待定。肝内多发模糊低强化结节，左肾上腺可疑结节；转移不除外，建议详查腹部。</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4493,7 +4493,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>左上肺腺癌术后,对比2017-03-23、2017-02-27片:左肺上叶术后部分缺失,支气管残端未见明显肿物,局部可见条索状致密影,较前未见明显变化。左肺上叶及下叶见少许条索状密影,边界欠清,左侧胸膜稍增厚,局部见斑点状钙化灶,较前未见明显变化。气管及余支气管分支通畅。双侧腋窝、气管食管沟、右下气管旁、主动脉旁及左肺门见数个淋巴结,较大短径约8MM,边界尚清,部分内可见钙化灶,较前未见明显变化。双侧胸腔未见积液。右侧胸膜无增厚、粘连。甲状腺双叶及峡部增大,密度不均匀,右叶见一结节,直径约为5MM,边界尚清,增强扫描见轻度强化。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度均匀,增强扫描未见异常强化表现。肝内胆管、胆总管未见扩张,胆囊大小正常,未见结石。肝门区结构未见异常。门静脉主干及分支未见充盈缺损。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。双肾未见明确异常。双肾上腺未见明确异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。腰2椎体右份见致密灶,边界尚清,密度不均匀,较前未见明显变化。左侧第6前肋骨质部分缺失。余骨质未见明显破坏。左上肺腺癌术后,对比2017-03-23、2017-02-27片:左上肺腺癌术后改变,未见明显肿瘤复发征象。左肺上叶及下叶少许纤维灶。双侧腋窝、纵隔及左肺门淋巴结并部分钙化,较前未见明显变化。腰2椎体病变,考虑转移瘤,较前未见明显变化。</t>
+          <t>左上肺腺癌术后，对比2017-03-23、2017-02-27片：左肺上叶术后部分缺失，支气管残端未见明显肿物，局部可见条索状致密影，较前未见明显变化。左肺上叶及下叶见少许条索状密影，边界欠清，左侧胸膜稍增厚，局部见斑点状钙化灶，较前未见明显变化。气管及余支气管分支通畅。双侧腋窝、气管食管沟、右下气管旁、主动脉旁及左肺门见数个淋巴结，较大短径约8MM，边界尚清，部分内可见钙化灶，较前未见明显变化。双侧胸腔未见积液。右侧胸膜无增厚、粘连。甲状腺双叶及峡部增大，密度不均匀，右叶见一结节，直径约为5MM，边界尚清，增强扫描见轻度强化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀，增强扫描未见异常强化表现。肝内胆管、胆总管未见扩张，胆囊大小正常，未见结石。肝门区结构未见异常。门静脉主干及分支未见充盈缺损。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾未见明确异常。双肾上腺未见明确异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。腰2椎体右份见致密灶，边界尚清，密度不均匀，较前未见明显变化。左侧第6前肋骨质部分缺失。余骨质未见明显破坏。左上肺腺癌术后，对比2017-03-23、2017-02-27片：左上肺腺癌术后改变，未见明显肿瘤复发征象。左肺上叶及下叶少许纤维灶。双侧腋窝、纵隔及左肺门淋巴结并部分钙化，较前未见明显变化。腰2椎体病变，考虑转移瘤，较前未见明显变化。</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4510,7 +4510,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>左肺下叶背段支气管截断伴软组织肿块,考虑恶性,肺癌可能大。外周肺阻塞性改变。左肺门及纵隔5组多发肿大淋巴结,考虑转移。隆突下钙化灶,考虑陈旧病变。左侧肾上腺可疑结节,请参考腹部检查。左肺下叶背段支气管截断,局部见类圆形软组织密度肿块,边缘见浅分叶,强化不均,约56MM×42MM(IM39),与肺门淋巴结融合,与左下肺门多支血管关系密切;远端肺内见斑片索条影。余肺清晰,未见结节及片絮状病灶。纵隔5组见融合状肿大淋巴结,约40MM×27MM(IM25);隆突下见不规则钙化灶。锁骨上未见肿大淋巴结。双侧胸膜较光滑,未见胸水。扫描所及诸骨未见骨质破坏灶。扫及左侧肾上腺饱满,内侧支可疑结节(IM67)。</t>
+          <t>左肺下叶背段支气管截断伴软组织肿块，考虑恶性，肺癌可能大。外周肺阻塞性改变。左肺门及纵隔5组多发肿大淋巴结，考虑转移。隆突下钙化灶，考虑陈旧病变。左侧肾上腺可疑结节，请参考腹部检查。左肺下叶背段支气管截断，局部见类圆形软组织密度肿块，边缘见浅分叶，强化不均，约56MM×42MM(IM39)，与肺门淋巴结融合，与左下肺门多支血管关系密切；远端肺内见斑片索条影。余肺清晰，未见结节及片絮状病灶。纵隔5组见融合状肿大淋巴结，约40MM×27MM(IM25)；隆突下见不规则钙化灶。锁骨上未见肿大淋巴结。双侧胸膜较光滑，未见胸水。扫描所及诸骨未见骨质破坏灶。扫及左侧肾上腺饱满，内侧支可疑结节(IM67)。</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4532,7 +4532,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>1、①胸下段食管管壁增厚,管腔狭窄,代谢异常活跃,符合食管癌表现,且肿瘤活性尚存。②余部食管及胃壁未见确切异常高代谢灶,建议结合胃镜检查。2、食管旁、左肺门、贲门周围、胃左动脉旁及胰头上方多发淋巴结代谢活跃,多数倾向为转移。余纵隔及右肺门反应性淋巴结可能大;3、右肺中叶结节,代谢轻度活跃,结合病理,考虑符合类癌,建议定期随访。4、左上颌窦炎症;甲状腺右叶结节(建议超声随访);右肺中叶及左肺上叶舌段索条;胆囊、结肠、膀胱增强扫描后改变;肝内钙化灶;子宫钙化灶。左髋臼骨岛。空腹6小时以上,静脉注射显像剂,平静休息60MMIN后行全身PET及CT断层显像,PET图像经衰减校正及重建后,将PET及CT图像行多平面、多幅显示:大脑形态如常,皮层各叶放射性分布均匀。皮层下各神经核团显影清晰,放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深,白质未见明显低密度影,中线无移位。脑室无扩大,基底节区显示对称。小脑显影如常,两侧小脑对称。左上颌窦粘膜轻度增厚,未见高摄取。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。甲状腺两叶不大,形态可,右叶见低密度结节,约0.7CM×0.3CM大小,未见高摄取,左叶腺实质内未见异常放射性增高灶。双颈部及锁骨上区未见明显异常淋巴结浓聚。两肺显影清晰,肺纹理正常,右肺中叶见类圆形结节,约0.9CM×0.7CM大小,边界光整,仅伴轻度摄取增高,最大SUV:2.8。右肺中叶及左肺上叶舌段索条影。心肌显影清晰。气管居中。胸膜无增厚,胸水征阴性。两侧大致对称,乳腺区未见异常浓聚灶。胸下段食管管壁增厚,管腔狭窄,较厚处约1.2CM,放射性分布异常浓聚,最大SUV:6.4,上下累及范围约3.1CM。余食管管壁及胃壁未见确切放射性分布异常浓聚灶。食管旁、左肺门、贲门周围、胃左动脉旁及胰头上方多发淋巴结浓聚,较大且较浓聚者位于胰头上方,约3.8CM×2.4CM大小,最大SUV:7.3。余纵隔及右肺门尚可见多个密度较高小淋巴结,均未见高摄取。盆腔内及双腹股沟未见浓聚淋巴结。腹水征阴性。肝脏形态可,轮廓光整,肝叶比例正常,肝实质内放射性分布稍欠均匀,肝内见钙化灶。肝内外胆管无扩张。胆囊大小正常,其内可见均匀性密度增高影,胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影,结直肠内见高密度对比剂影。膀胱内尿液密度增高,放射性浓聚如常。子宫体积、形态尚可,局部无异常放射性浓聚,宫壁见钙化灶。两侧附件区未见异常放射性摄取。视野内轴心骨未见异常放射性浓聚。上、下肢关节带大致正常。左髋臼骨岛。</t>
+          <t>1、①胸下段食管管壁增厚，管腔狭窄，代谢异常活跃，符合食管癌表现，且肿瘤活性尚存。②余部食管及胃壁未见确切异常高代谢灶，建议结合胃镜检查。2、食管旁、左肺门、贲门周围、胃左动脉旁及胰头上方多发淋巴结代谢活跃，多数倾向为转移。余纵隔及右肺门反应性淋巴结可能大；3、右肺中叶结节，代谢轻度活跃，结合病理，考虑符合类癌，建议定期随访。4、左上颌窦炎症；甲状腺右叶结节(建议超声随访)；右肺中叶及左肺上叶舌段索条；胆囊、结肠、膀胱增强扫描后改变；肝内钙化灶；子宫钙化灶。左髋臼骨岛。空腹6小时以上，静脉注射显像剂，平静休息60MMIN后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：大脑形态如常，皮层各叶放射性分布均匀。皮层下各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，两侧小脑对称。左上颌窦粘膜轻度增厚，未见高摄取。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺两叶不大，形态可，右叶见低密度结节，约0.7CM×0.3CM大小，未见高摄取，左叶腺实质内未见异常放射性增高灶。双颈部及锁骨上区未见明显异常淋巴结浓聚。两肺显影清晰，肺纹理正常，右肺中叶见类圆形结节，约0.9CM×0.7CM大小，边界光整，仅伴轻度摄取增高，最大SUV：2.8。右肺中叶及左肺上叶舌段索条影。心肌显影清晰。气管居中。胸膜无增厚，胸水征阴性。两侧大致对称，乳腺区未见异常浓聚灶。胸下段食管管壁增厚，管腔狭窄，较厚处约1.2CM，放射性分布异常浓聚，最大SUV：6.4，上下累及范围约3.1CM。余食管管壁及胃壁未见确切放射性分布异常浓聚灶。食管旁、左肺门、贲门周围、胃左动脉旁及胰头上方多发淋巴结浓聚，较大且较浓聚者位于胰头上方，约3.8CM×2.4CM大小，最大SUV：7.3。余纵隔及右肺门尚可见多个密度较高小淋巴结，均未见高摄取。盆腔内及双腹股沟未见浓聚淋巴结。腹水征阴性。肝脏形态可，轮廓光整，肝叶比例正常，肝实质内放射性分布稍欠均匀，肝内见钙化灶。肝内外胆管无扩张。胆囊大小正常，其内可见均匀性密度增高影，胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影，结直肠内见高密度对比剂影。膀胱内尿液密度增高，放射性浓聚如常。子宫体积、形态尚可，局部无异常放射性浓聚，宫壁见钙化灶。两侧附件区未见异常放射性摄取。视野内轴心骨未见异常放射性浓聚。上、下肢关节带大致正常。左髋臼骨岛。</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4549,7 +4549,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>右侧乳腺导管增多,腺体结构尚正常,8点钟见3MM×2MM无回声区,CDFI未见明显彩色血流。左侧乳腺导管增多,腺体结构尚正常,11点钟见17MM×11MM低回声区,形态不规则,内见数个强回声,最大1MM,CDFI见线状彩色血流,周边为主,RI0.80。双侧腋窝见数个高回声区,右侧最大12MM×4MM,左侧最大11MM×7MM,CDFI见点状彩色血流,双侧腋窝见高回声区,右侧34MM×7MM,左侧26MM×5MM。双侧颌下、双侧颈血管旁见数枚低回声区,右侧最大16MM×5MM,左侧最大12MM×5MM,左侧锁骨上见6MM×3MM低回声团块,右侧锁骨上未见明显肿块回声。CDFI未见异常血流。肝肋下斜切126MM/(-),剑下纵切60MM/2指,肝区回声较密尚均,门脉主干内径11MM,右支内径7MM,流速0.20MM/S,主干及左右支血流通畅,为向肝血流,流速曲线正常,脾门处脾静脉内径6MM,血流通畅。肝静脉血流通畅。脾肋间切35MM/(-)。左乳实质占位-考虑MT可能;双侧腋窝、双侧颈部及双侧锁骨上见淋巴结;右乳无回声区-考虑局部导管扩张;双侧腋窝副乳;双侧乳腺小叶增生,。</t>
+          <t>右侧乳腺导管增多，腺体结构尚正常，8点钟见3MM×2MM无回声区，CDFI未见明显彩色血流。左侧乳腺导管增多，腺体结构尚正常，11点钟见17MM×11MM低回声区，形态不规则，内见数个强回声，最大1MM，CDFI见线状彩色血流，周边为主，RI0.80。双侧腋窝见数个高回声区，右侧最大12MM×4MM，左侧最大11MM×7MM，CDFI见点状彩色血流，双侧腋窝见高回声区，右侧34MM×7MM，左侧26MM×5MM。双侧颌下、双侧颈血管旁见数枚低回声区，右侧最大16MM×5MM，左侧最大12MM×5MM，左侧锁骨上见6MM×3MM低回声团块，右侧锁骨上未见明显肿块回声。CDFI未见异常血流。肝肋下斜切126MM/(-)，剑下纵切60MM/2指，肝区回声较密尚均，门脉主干内径11MM，右支内径7MM，流速0.20MM/S，主干及左右支血流通畅，为向肝血流，流速曲线正常，脾门处脾静脉内径6MM，血流通畅。肝静脉血流通畅。脾肋间切35MM/(-)。左乳实质占位-考虑MT可能；双侧腋窝、双侧颈部及双侧锁骨上见淋巴结；右乳无回声区-考虑局部导管扩张；双侧腋窝副乳；双侧乳腺小叶增生，。</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4567,7 +4567,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>左肺下叶后基底段示一不规则肿块影,边缘分叶状,周围可见粗长毛刺,局部与纵隔胸膜关系密切,可见条索影同肺门相连,外周肺野可见纤维条索状密度增高影,呈明显不均匀强化,大小约2.3CM×1.9CM,左侧背侧胸膜可见轻度增厚;双肺野及左侧胸膜区可见多个结节灶,大者边缘毛糙,位于右肺下叶及肺门区,可见强化,直径约0.9CM。右肺门示淋巴结,直径约为0.9CM;纵隔、左肺门未见肿大淋巴结。左肺下叶肺癌并双肺、左侧胸膜转移,较前片2016-12-22示好转;左侧胸膜增厚,变化不著;骨转移,较前变化不著;右侧第6后肋骨质密度增高,变化不著</t>
+          <t>左肺下叶后基底段示一不规则肿块影，边缘分叶状，周围可见粗长毛刺，局部与纵隔胸膜关系密切，可见条索影同肺门相连，外周肺野可见纤维条索状密度增高影，呈明显不均匀强化，大小约2.3CM×1.9CM，左侧背侧胸膜可见轻度增厚；双肺野及左侧胸膜区可见多个结节灶，大者边缘毛糙，位于右肺下叶及肺门区，可见强化，直径约0.9CM。右肺门示淋巴结，直径约为0.9CM；纵隔、左肺门未见肿大淋巴结。左肺下叶肺癌并双肺、左侧胸膜转移，较前片2016-12-22示好转；左侧胸膜增厚，变化不著；骨转移，较前变化不著；右侧第6后肋骨质密度增高，变化不著</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4589,7 +4589,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行PET/CT断层显像。脑部PET/CT图像示脑皮质及双侧基底节、丘脑、小脑未见明显糖代谢异常;脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET/CT图像示眼球、眼眶内未见明显糖代谢异常;眼球环壁完整,球内未见明显占位,视神经未见明显异常密度灶,眶内脂肪间隙清晰。鼻咽部PET/CT图像示鼻咽部、咽旁间隙均未见明显糖代谢异常增高灶;鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰;双侧上颌窦粘膜增厚,考虑为慢性炎症。颈部PET/CT图像示甲状腺无明显肿大,双侧叶密度欠均匀,未见明显糖代谢异常增高灶;双侧颈部、锁骨区未见明显糖代谢异常增高灶或肿大淋巴结;口咽及喉咽部无殊。胸部PET/CT图像示左肺MT术后,左肺体积缩小;左肺下叶见纤维条索灶;右肺上叶前段见多枚小结节,直径小于5.0MM,最大SUV值约为0.4;右肺下叶背段见斑片状稍高密度影,最大SUV值约为1.1;左侧内乳区(约平第2前肋水平)见糖代谢异常增高的淋巴结,大小约为9.7MM×6.8MM,平均CT值约为47.5HU,最大SUV值约为14.0;余纵隔及双侧肺门未见明显糖代谢异常增高灶及肿大淋巴结;双侧胸腔无积液;心脏无明显增大;双侧腋窝未见明显糖代谢异常增高灶及肿大淋巴结;左侧乳腺见钙化灶;右侧乳腺无殊。腹部PET/CT图像示肝脏右叶近膈顶处见糖代谢异常增高的低密度灶,大小约为25.3MM×18.1MM,平均CT值约为19.5HU,最大SUV值约为12.7;肝脏见小囊性灶,较大者位于右后叶下段,直径约为5.4MM,平均CT值约为23.0HU,最大SUV值约为2.2;肝内外胆管未见明显扩张;脾脏见点状钙化灶,未见明显糖代谢异常增高;胆囊、双肾、胰腺和双侧肾上腺未见明显糖代谢异常增高灶及占位;胃肠道内见显像剂生理性分布;腹膜后未见明显糖代谢异常增高灶及肿大淋巴结;腹腔无积液。盆部PET/CT图像示左侧髂血管旁见糖代谢异常增高的淋巴结,直径约为5.2MM,平均CT值约为54.0HU,最大SUV值约为6.1;肠道内见显像剂生理性分布;膀胱内见显像剂生理性积聚;子宫和双侧附件区未见明显糖代谢异常增高灶及占位;双侧腹股沟未见明显糖代谢异常增高灶及肿大淋巴结;盆腔无积液。骨骼PET/CT图像示胸骨下段和骶骨见溶骨性骨质破坏、周围软组织伴糖代谢异常增高,最大SUV值分别约为19.2和30.1;左侧第5肋后段局部骨质不连,考虑为术后改变。肺MT综合治疗后病例:左侧内乳和左侧髂血管旁淋巴结转移;肝脏右叶转移;胸骨和骶骨转移;右肺慢性炎性小结节可能,请随访;两肺慢性炎症;左侧乳腺钙化灶;肝脏囊肿;脾脏钙化灶。</t>
+          <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行PET/CT断层显像。脑部PET/CT图像示脑皮质及双侧基底节、丘脑、小脑未见明显糖代谢异常；脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET/CT图像示眼球、眼眶内未见明显糖代谢异常；眼球环壁完整，球内未见明显占位，视神经未见明显异常密度灶，眶内脂肪间隙清晰。鼻咽部PET/CT图像示鼻咽部、咽旁间隙均未见明显糖代谢异常增高灶；鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰；双侧上颌窦粘膜增厚，考虑为慢性炎症。颈部PET/CT图像示甲状腺无明显肿大，双侧叶密度欠均匀，未见明显糖代谢异常增高灶；双侧颈部、锁骨区未见明显糖代谢异常增高灶或肿大淋巴结；口咽及喉咽部无殊。胸部PET/CT图像示左肺MT术后，左肺体积缩小；左肺下叶见纤维条索灶；右肺上叶前段见多枚小结节，直径小于5.0MM，最大SUV值约为0.4；右肺下叶背段见斑片状稍高密度影，最大SUV值约为1.1；左侧内乳区(约平第2前肋水平)见糖代谢异常增高的淋巴结，大小约为9.7MM×6.8MM，平均CT值约为47.5HU，最大SUV值约为14.0；余纵隔及双侧肺门未见明显糖代谢异常增高灶及肿大淋巴结；双侧胸腔无积液；心脏无明显增大；双侧腋窝未见明显糖代谢异常增高灶及肿大淋巴结；左侧乳腺见钙化灶；右侧乳腺无殊。腹部PET/CT图像示肝脏右叶近膈顶处见糖代谢异常增高的低密度灶，大小约为25.3MM×18.1MM，平均CT值约为19.5HU，最大SUV值约为12.7；肝脏见小囊性灶，较大者位于右后叶下段，直径约为5.4MM，平均CT值约为23.0HU，最大SUV值约为2.2；肝内外胆管未见明显扩张；脾脏见点状钙化灶，未见明显糖代谢异常增高；胆囊、双肾、胰腺和双侧肾上腺未见明显糖代谢异常增高灶及占位；胃肠道内见显像剂生理性分布；腹膜后未见明显糖代谢异常增高灶及肿大淋巴结；腹腔无积液。盆部PET/CT图像示左侧髂血管旁见糖代谢异常增高的淋巴结，直径约为5.2MM，平均CT值约为54.0HU，最大SUV值约为6.1；肠道内见显像剂生理性分布；膀胱内见显像剂生理性积聚；子宫和双侧附件区未见明显糖代谢异常增高灶及占位；双侧腹股沟未见明显糖代谢异常增高灶及肿大淋巴结；盆腔无积液。骨骼PET/CT图像示胸骨下段和骶骨见溶骨性骨质破坏、周围软组织伴糖代谢异常增高，最大SUV值分别约为19.2和30.1；左侧第5肋后段局部骨质不连，考虑为术后改变。肺MT综合治疗后病例：左侧内乳和左侧髂血管旁淋巴结转移；肝脏右叶转移；胸骨和骶骨转移；右肺慢性炎性小结节可能，请随访；两肺慢性炎症；左侧乳腺钙化灶；肝脏囊肿；脾脏钙化灶。</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4606,7 +4606,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>右乳外侧结构紊乱,见一截面约2.8CM×3.1CM不均匀软组织肿块,形态不规则,边缘不清,较显著强化;同侧皮肤较广泛性增厚。右下颈部、右侧锁骨上、右侧腋窝、胸肌间、右侧内乳区见大者短径约1.1CM肿大或稍大淋巴结。左侧锁骨上见短径不足0.5CM小淋巴结。右肺见少许斑片影。1.结合临床,右乳癌并同侧皮肤增厚,右侧腋窝、右胸肌间、右侧锁骨上淋巴结转移;右侧内乳区、右下颈部淋巴结稍大,转移不除外;左侧锁骨上小淋巴结2.右肺少许纤维灶或慢性炎症</t>
+          <t>右乳外侧结构紊乱，见一截面约2.8CM×3.1CM不均匀软组织肿块，形态不规则，边缘不清，较显著强化；同侧皮肤较广泛性增厚。右下颈部、右侧锁骨上、右侧腋窝、胸肌间、右侧内乳区见大者短径约1.1CM肿大或稍大淋巴结。左侧锁骨上见短径不足0.5CM小淋巴结。右肺见少许斑片影。1.结合临床，右乳癌并同侧皮肤增厚，右侧腋窝、右胸肌间、右侧锁骨上淋巴结转移；右侧内乳区、右下颈部淋巴结稍大，转移不除外；左侧锁骨上小淋巴结2.右肺少许纤维灶或慢性炎症</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -4628,7 +4628,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>1.右乳占位,符合恶性,右侧腋窝淋巴结增大,下位胸椎骨转移;2.左肺下叶粟粒结节,左肺下叶条索灶。左肺下叶(14)见粟粒结节影。左肺下叶见条索影。两肺纹理清晰。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。右乳见肿块影,径约4.8CM。右侧腋窝淋巴结增大,径约1.5CM;上位胸椎体见骨质破坏征象。</t>
+          <t>1.右乳占位，符合恶性，右侧腋窝淋巴结增大，下位胸椎骨转移；2.左肺下叶粟粒结节，左肺下叶条索灶。左肺下叶(14)见粟粒结节影。左肺下叶见条索影。两肺纹理清晰。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。右乳见肿块影，径约4.8CM。右侧腋窝淋巴结增大，径约1.5CM；上位胸椎体见骨质破坏征象。</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -4650,7 +4650,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>肝内见多发结节状低密度灶,大者约2.5CM,增强后可见轻度边缘强化,边界不清,胆道内见金属支架影,门脉右支未见充盈缺损;脾脏未见肿大,密度均匀;胰腺及双侧肾脏无殊;宫颈见小囊性低密度无强化灶;宫颈见小囊性低密度无强化灶;右侧卵巢见二枚囊状低密度灶,约2.5CM,局部后缘囊壁略厚,腹盆腔内无积液。部分腰椎内见结节状高密度影及类圆形透亮影,骶骨内见小结节高密度影。左乳MT术后病例,肝脏多发转移,较16-7-24片明显进展;右侧卵巢囊状灶,较前片增大;部分腰骶椎骨转移;宫颈小囊肿,请结合超声检查。</t>
+          <t>肝内见多发结节状低密度灶，大者约2.5CM，增强后可见轻度边缘强化，边界不清，胆道内见金属支架影，门脉右支未见充盈缺损；脾脏未见肿大，密度均匀；胰腺及双侧肾脏无殊；宫颈见小囊性低密度无强化灶；宫颈见小囊性低密度无强化灶；右侧卵巢见二枚囊状低密度灶，约2.5CM，局部后缘囊壁略厚，腹盆腔内无积液。部分腰椎内见结节状高密度影及类圆形透亮影，骶骨内见小结节高密度影。左乳MT术后病例，肝脏多发转移，较16-7-24片明显进展；右侧卵巢囊状灶，较前片增大；部分腰骶椎骨转移；宫颈小囊肿，请结合超声检查。</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4667,7 +4667,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>肺动脉主干及其主要分支走行正常,管腔未见明显充盈缺损。右侧肺门处见不规则软组织灶,大小约4.6CM×4.1CM,包绕右下肺动脉及邻近支气管,远端肺组织见斑片状模糊影,两肺另见多发散在小斑片、类结节影,两肺上叶见小囊性透气灶,右下肺各支气管腔狭窄,肺门及纵隔见肿大淋巴结,胸膜无增厚,双侧胸腔内见积液。T6椎体密度不均,内见类结节状低密度灶,周围见硬化边。心包少量积液。右心膈角淋巴结肿大。肝内见多发结节状低密度灶。肺动脉主干未见明显栓塞征象;右肺门MT、包绕右下肺动脉,伴右下肺阻塞性炎症,两肺散在斑片结节灶,纵膈、肺门及右心膈角淋巴结肿大,两侧少量胸腔积液;两肺轻度气肿;T6椎体异常密度,建议核素骨扫描。肝脏多发转移。</t>
+          <t>肺动脉主干及其主要分支走行正常，管腔未见明显充盈缺损。右侧肺门处见不规则软组织灶，大小约4.6CM×4.1CM，包绕右下肺动脉及邻近支气管，远端肺组织见斑片状模糊影，两肺另见多发散在小斑片、类结节影，两肺上叶见小囊性透气灶，右下肺各支气管腔狭窄，肺门及纵隔见肿大淋巴结，胸膜无增厚，双侧胸腔内见积液。T6椎体密度不均，内见类结节状低密度灶，周围见硬化边。心包少量积液。右心膈角淋巴结肿大。肝内见多发结节状低密度灶。肺动脉主干未见明显栓塞征象；右肺门MT、包绕右下肺动脉，伴右下肺阻塞性炎症，两肺散在斑片结节灶，纵膈、肺门及右心膈角淋巴结肿大，两侧少量胸腔积液；两肺轻度气肿；T6椎体异常密度，建议核素骨扫描。肝脏多发转移。</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4689,7 +4689,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>左乳癌术后改变。左肺尖斑片及条索灶,考虑放射性纤维化可能性大。双肺弥漫分布结节灶,考虑转移瘤可能性大,右肺上叶最大病灶可见分叶及毛刺,原发癌待排。右侧锁骨上、双肺门、纵隔、右侧前膈角、肝门区、胃左、腹腔干、腹主动脉旁多个淋巴结,考虑转移可能性大。肝内多发结节状病灶,考虑转移瘤可能性大。肝脾包膜、盆底腹膜、肠系膜、大网膜明显增厚,考虑转移可能性大。双侧胸腔积液,腹盆腔积液。右侧肱骨、多个椎体骨质破坏,考虑转移。左乳癌术后,左侧乳腺缺失,左侧胸壁未见明显肿物影,右侧乳腺未见明显异常密度灶,双侧腋窝未见明显肿大淋巴结。双肺纹理增粗,左肺尖见片状及条索灶,部分呈网格样改变。双肺见弥漫分布结节灶,大小约2MM×2MM~16MM×19MM,最大者位于右肺下叶背段,边缘毛糙,见短毛刺,临近胸膜可见牵拉,增强后明显强化。右侧锁骨上、下气管旁、双肺门、隆突下见多个淋巴结,短径约4~7MM,较明显强化。双侧胸腔见少量积液。双侧胸膜无增厚、粘连。肝内见多个结节状及团块状病灶,部分相互融合,最大者位于肝S3/4,呈多结节相互融合状,大小约37MM×39MM,边缘可见强化。肝内胆管正常,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。门静脉所见正常。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。双肾所见正常。双肾上腺所见正常。肝脾包膜、盆底腹膜、肠系膜、大网膜明显增厚,部分呈类结节状,大网膜增厚呈饼状,增强后不均匀强化。右侧前膈角、肝门区、胃左、腹腔干、腹主动脉旁见肿大淋巴结,最大者约18MM×21MM,增强后较明显强化。腹盆腔见大量积液。膀胱充盈良好,境界清楚。子宫大小、形态未见明显异常,子宫颈大小、形态未见异常。双侧髂血管旁、腹股沟未见肿大淋巴结。甲状腺双叶及峡部形态正常,密度均匀,未见占位性病变。喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。双侧颌下腺、腮腺大小形态正常,密度均匀。双颈IB、II区见数个淋巴结,短径约4~7MM,较明显强化。右侧肱骨、多个椎体见溶骨性骨质破坏,部分病灶周围见软组织肿块形成。</t>
+          <t>左乳癌术后改变。左肺尖斑片及条索灶，考虑放射性纤维化可能性大。双肺弥漫分布结节灶，考虑转移瘤可能性大，右肺上叶最大病灶可见分叶及毛刺，原发癌待排。右侧锁骨上、双肺门、纵隔、右侧前膈角、肝门区、胃左、腹腔干、腹主动脉旁多个淋巴结，考虑转移可能性大。肝内多发结节状病灶，考虑转移瘤可能性大。肝脾包膜、盆底腹膜、肠系膜、大网膜明显增厚，考虑转移可能性大。双侧胸腔积液，腹盆腔积液。右侧肱骨、多个椎体骨质破坏，考虑转移。左乳癌术后，左侧乳腺缺失，左侧胸壁未见明显肿物影，右侧乳腺未见明显异常密度灶，双侧腋窝未见明显肿大淋巴结。双肺纹理增粗，左肺尖见片状及条索灶，部分呈网格样改变。双肺见弥漫分布结节灶，大小约2MM×2MM~16MM×19MM，最大者位于右肺下叶背段，边缘毛糙，见短毛刺，临近胸膜可见牵拉，增强后明显强化。右侧锁骨上、下气管旁、双肺门、隆突下见多个淋巴结，短径约4~7MM，较明显强化。双侧胸腔见少量积液。双侧胸膜无增厚、粘连。肝内见多个结节状及团块状病灶，部分相互融合，最大者位于肝S3/4，呈多结节相互融合状，大小约37MM×39MM，边缘可见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾所见正常。双肾上腺所见正常。肝脾包膜、盆底腹膜、肠系膜、大网膜明显增厚，部分呈类结节状，大网膜增厚呈饼状，增强后不均匀强化。右侧前膈角、肝门区、胃左、腹腔干、腹主动脉旁见肿大淋巴结，最大者约18MM×21MM，增强后较明显强化。腹盆腔见大量积液。膀胱充盈良好，境界清楚。子宫大小、形态未见明显异常，子宫颈大小、形态未见异常。双侧髂血管旁、腹股沟未见肿大淋巴结。甲状腺双叶及峡部形态正常，密度均匀，未见占位性病变。喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。双侧颌下腺、腮腺大小形态正常，密度均匀。双颈IB、II区见数个淋巴结，短径约4~7MM，较明显强化。右侧肱骨、多个椎体见溶骨性骨质破坏，部分病灶周围见软组织肿块形成。</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4706,7 +4706,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行PET/CT断层显像。脑部PET/CT图像示脑皮质及双侧基底节、丘脑、小脑未见明显糖代谢异常;脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET/CT图像示眼球、眼眶内未见明显糖代谢异常;眼球环壁完整,球内未见明显占位,视神经未见明显异常密度灶,眶内脂肪间隙清晰。鼻咽部PET/CT图像示鼻咽部、咽旁间隙均未见明显糖代谢异常增高灶;鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰;双侧额窦、筛窦、蝶窦和双侧上颌窦未见明显糖代谢异常增高灶及占位。颈部PET/CT图像示甲状腺双侧叶饱满,密度欠均匀,双侧叶内见稍低密度灶,右叶见小钙化灶;双侧颈部、锁骨区未见明显糖代谢异常增高灶或肿大淋巴结;口咽及喉咽部未见明显糖代谢异常增高灶及占位。胸部PET/CT图像示两肺纹理增粗,左肺下叶后基底段见糖代谢增高的结节,边缘见小毛刺野,邻近胸膜牵拉,大小约为17.3MM×16.9MM,最大SUV值约为7.1;各级支气管腔通畅;后纵隔(左侧支气管后方、食管前方)见大小约为6.8MM×8.5MM淋巴结,最大SUV值约为5.0;纵隔余处及双侧肺门未见明显糖代谢异常增高灶及肿大淋巴结;双侧胸腔无积液;心脏增大,右前胸壁见起搏器;双侧腋窝未见明显糖代谢异常增高灶及肿大淋巴结;双侧乳腺未见明显糖代谢异常增高灶及占位。腹部PET/CT图像示胃壁生理性显像剂分布;肠道内见显像剂生理性分布;肝脏表面光整,各叶比例匀称,实质内未见明显糖代谢异常增高灶及占位;肝内外胆管未见明显扩张;脾脏不大,密度均匀,未见明显糖代谢异常增高灶及占位;右肾见囊性灶,较大者大小约为22.8MM×19.6MM,最大SUV值约为1.3,平均CT值约为11.8HU;左肾见小结石,左肾盂稍扩张;胆囊、胰腺、双侧肾上腺未见明显糖代谢异常增高灶及占位;腹膜后未见明显糖代谢异常增高灶及肿大淋巴结;腹腔无积液。盆部PET/CT图像示肠道内见显像剂生理性分布;膀胱内见显像剂生理性积聚;子宫和双侧附件区未见明显糖代谢异常增高灶及占位;双侧腹股沟未见明显糖代谢异常增高灶及肿大淋巴结;盆腔无积液。骨骼PET/CT图像未见糖代谢异常增高灶,诸骨结构完整,未见明显骨质破坏吸收征象。考虑为左肺下叶MT可能;后纵隔(左侧支气管后方)淋巴结转移不除外,请结合临床;右肾囊肿;左肾结石;甲状腺双侧叶密度不均匀,请随访超声检查。</t>
+          <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行PET/CT断层显像。脑部PET/CT图像示脑皮质及双侧基底节、丘脑、小脑未见明显糖代谢异常；脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET/CT图像示眼球、眼眶内未见明显糖代谢异常；眼球环壁完整，球内未见明显占位，视神经未见明显异常密度灶，眶内脂肪间隙清晰。鼻咽部PET/CT图像示鼻咽部、咽旁间隙均未见明显糖代谢异常增高灶；鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰；双侧额窦、筛窦、蝶窦和双侧上颌窦未见明显糖代谢异常增高灶及占位。颈部PET/CT图像示甲状腺双侧叶饱满，密度欠均匀，双侧叶内见稍低密度灶，右叶见小钙化灶；双侧颈部、锁骨区未见明显糖代谢异常增高灶或肿大淋巴结；口咽及喉咽部未见明显糖代谢异常增高灶及占位。胸部PET/CT图像示两肺纹理增粗，左肺下叶后基底段见糖代谢增高的结节，边缘见小毛刺野，邻近胸膜牵拉，大小约为17.3MM×16.9MM，最大SUV值约为7.1；各级支气管腔通畅；后纵隔(左侧支气管后方、食管前方)见大小约为6.8MM×8.5MM淋巴结，最大SUV值约为5.0；纵隔余处及双侧肺门未见明显糖代谢异常增高灶及肿大淋巴结；双侧胸腔无积液；心脏增大，右前胸壁见起搏器；双侧腋窝未见明显糖代谢异常增高灶及肿大淋巴结；双侧乳腺未见明显糖代谢异常增高灶及占位。腹部PET/CT图像示胃壁生理性显像剂分布；肠道内见显像剂生理性分布；肝脏表面光整，各叶比例匀称，实质内未见明显糖代谢异常增高灶及占位；肝内外胆管未见明显扩张；脾脏不大，密度均匀，未见明显糖代谢异常增高灶及占位；右肾见囊性灶，较大者大小约为22.8MM×19.6MM，最大SUV值约为1.3，平均CT值约为11.8HU；左肾见小结石，左肾盂稍扩张；胆囊、胰腺、双侧肾上腺未见明显糖代谢异常增高灶及占位；腹膜后未见明显糖代谢异常增高灶及肿大淋巴结；腹腔无积液。盆部PET/CT图像示肠道内见显像剂生理性分布；膀胱内见显像剂生理性积聚；子宫和双侧附件区未见明显糖代谢异常增高灶及占位；双侧腹股沟未见明显糖代谢异常增高灶及肿大淋巴结；盆腔无积液。骨骼PET/CT图像未见糖代谢异常增高灶，诸骨结构完整，未见明显骨质破坏吸收征象。考虑为左肺下叶MT可能；后纵隔(左侧支气管后方)淋巴结转移不除外，请结合临床；右肾囊肿；左肾结石；甲状腺双侧叶密度不均匀，请随访超声检查。</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -4728,7 +4728,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>1.结合临床,前纵隔小细胞癌治疗后,较前(2015-05-25)略缩小;左侧腋窝、纵隔、双侧锁骨上、双肺门、膈上前中组淋巴结转移治疗后,较前部分缩小,部分变化不著,少部分示增大;双肺、胸膜转移治疗后,较前基本变化不著;腹膜后、膈脚后淋巴结转移治疗后,部分较前缩小,部分变化不著,部分增大(其内低密度区增多)。2.左侧胸腔积液伴左肺膨胀不全,积液示减少。前纵隔可见类三角形软组织密度肿块影,约3.0CM×3.3CM,增强扫描呈明显不均匀强化,与邻近纵膈内软组织分界不清,左腋窝、纵隔内2R、3A区、4R、5、6、7、8、9L区及双锁骨上、左侧颈后三角区、双肺门、左侧心隔角、膈上中组、右下肺基底段示结节灶,大者短径约1.6CM。双肺及双侧胸膜、叶间胸膜示增厚,并散在多发结节灶,胸膜显示不均匀增厚、强化。左胸腔内可见弧形液性密度影,其上缘示膨胀不全的肺组织。肝脏形态不规则,实质密度均匀,胆囊、胰腺、脾及双肾、双肾上腺未见异常。近肝门区、下腔静脉及腹主动脉周围、双侧膈脚后示数个结节灶,大者短径约1.9CM。</t>
+          <t>1.结合临床，前纵隔小细胞癌治疗后，较前(2015-05-25)略缩小；左侧腋窝、纵隔、双侧锁骨上、双肺门、膈上前中组淋巴结转移治疗后，较前部分缩小，部分变化不著，少部分示增大；双肺、胸膜转移治疗后，较前基本变化不著；腹膜后、膈脚后淋巴结转移治疗后，部分较前缩小，部分变化不著，部分增大(其内低密度区增多)。2.左侧胸腔积液伴左肺膨胀不全，积液示减少。前纵隔可见类三角形软组织密度肿块影，约3.0CM×3.3CM，增强扫描呈明显不均匀强化，与邻近纵膈内软组织分界不清，左腋窝、纵隔内2R、3A区、4R、5、6、7、8、9L区及双锁骨上、左侧颈后三角区、双肺门、左侧心隔角、膈上中组、右下肺基底段示结节灶，大者短径约1.6CM。双肺及双侧胸膜、叶间胸膜示增厚，并散在多发结节灶，胸膜显示不均匀增厚、强化。左胸腔内可见弧形液性密度影，其上缘示膨胀不全的肺组织。肝脏形态不规则，实质密度均匀，胆囊、胰腺、脾及双肾、双肾上腺未见异常。近肝门区、下腔静脉及腹主动脉周围、双侧膈脚后示数个结节灶，大者短径约1.9CM。</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -4750,7 +4750,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼外肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。鼻窦区未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示右侧锁骨区见大小约为10.6MM×4.5MM淋巴结;双侧颈部无明显肿大淋巴结;口咽、喉咽部无占位;甲状腺饱满,密度不均匀。胸部PET/CT图像示右侧乳头深部和内侧象限见数枚糖代谢增高软组织结节,部分趋于融合,乳头后方为著,大小约为37.2MM×35.0MM,最大SUV值约为17.9,局部皮肤增厚,乳头内凹;右乳内下象限病灶紧贴毗邻胸壁;右乳外上象限另见一大小约为9.0MM×8.0MM、无明显糖代谢增高的软组织结节;右乳另见数枚钙化灶;右侧腋窝见数枚糖代谢增高的肿大淋巴结,较大且糖代谢较高者大小约为16.0MM×12.2MM,最大SUV值约为7.9;右侧内乳(第2/3前肋间隙)见直径约为7.5MM、糖代谢增高的淋巴结,最大SUV值约为3.8;左乳未见明显糖代谢异常增高,内侧象限(乳头水平)见致密小结节;左侧腋窝无殊;两肺野未见明显糖代谢异常增高;右肺上叶尖段和下叶内基底段见团片状模糊影,上叶尖段部分支气管略扩张,近肺门处支气管腔内软组织影略增多;左肺上叶尖后段见直径小于5.0MM磨玻璃结节;左肺上叶尖后段和右肺下叶前基底段各见一致密小结节;纵隔、双肺门未见明显糖代谢异常增高和肿大淋巴结;双侧胸腔无积液;心脏无明显增大。腹部PET图像示胃壁呈糖代谢生理性增强;肠道呈生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整,各叶比例匀称,实质内未见明显占位;肝内外胆管无扩张;脾脏不大,密度均,未见明显占位;胆囊、胰、双肾、肾上腺无殊;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚;肠道呈生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁光滑无增厚;子宫和双附件区未见明显占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET图像未见糖代谢异常增高。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗示骶管局部膨大,相邻骨质压迫吸收;其余骨骼未见明显骨质破坏。右侧乳腺多发MT伴右侧腋窝和内乳淋巴结转移;右侧锁骨区稍大淋巴结,请随访;左乳钙化灶;左肺上叶小磨玻璃结节,请随访;右肺慢性炎症可能;左肺上叶和右肺下叶慢性炎性结节趋于陈旧;甲状腺密度不均匀,请结合超声检查;骶管囊肿。</t>
+          <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。鼻窦区未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示右侧锁骨区见大小约为10.6MM×4.5MM淋巴结；双侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺饱满，密度不均匀。胸部PET/CT图像示右侧乳头深部和内侧象限见数枚糖代谢增高软组织结节，部分趋于融合，乳头后方为著，大小约为37.2MM×35.0MM，最大SUV值约为17.9，局部皮肤增厚，乳头内凹；右乳内下象限病灶紧贴毗邻胸壁；右乳外上象限另见一大小约为9.0MM×8.0MM、无明显糖代谢增高的软组织结节；右乳另见数枚钙化灶；右侧腋窝见数枚糖代谢增高的肿大淋巴结，较大且糖代谢较高者大小约为16.0MM×12.2MM，最大SUV值约为7.9；右侧内乳(第2/3前肋间隙)见直径约为7.5MM、糖代谢增高的淋巴结，最大SUV值约为3.8；左乳未见明显糖代谢异常增高，内侧象限(乳头水平)见致密小结节；左侧腋窝无殊；两肺野未见明显糖代谢异常增高；右肺上叶尖段和下叶内基底段见团片状模糊影，上叶尖段部分支气管略扩张，近肺门处支气管腔内软组织影略增多；左肺上叶尖后段见直径小于5.0MM磨玻璃结节；左肺上叶尖后段和右肺下叶前基底段各见一致密小结节；纵隔、双肺门未见明显糖代谢异常增高和肿大淋巴结；双侧胸腔无积液；心脏无明显增大。腹部PET图像示胃壁呈糖代谢生理性增强；肠道呈生理性糖代谢增强；肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内未见明显占位；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；胆囊、胰、双肾、肾上腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚；肠道呈生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁光滑无增厚；子宫和双附件区未见明显占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见糖代谢异常增高。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示骶管局部膨大，相邻骨质压迫吸收；其余骨骼未见明显骨质破坏。右侧乳腺多发MT伴右侧腋窝和内乳淋巴结转移；右侧锁骨区稍大淋巴结，请随访；左乳钙化灶；左肺上叶小磨玻璃结节，请随访；右肺慢性炎症可能；左肺上叶和右肺下叶慢性炎性结节趋于陈旧；甲状腺密度不均匀，请结合超声检查；骶管囊肿。</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4772,7 +4772,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>左乳癌术后,左侧胸壁未见明确增厚结节,右乳未见明确肿物。左锁上区见肿大淋巴结,最大约16MM×14MM,密度不均匀,增强后不均匀明显强化。双侧腋窝未见明确肿大淋巴结。双肺纹理清晰,右中肺见少许索条,余肺内未见实质性病变。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,肝实质密度普遍不均匀减低,增强后强化密度尚均匀,未见异常强化。肝内胆管正常,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。肝门区正常。门静脉未见异常。脾、胰腺大小、形态正常,密度均匀。双肾、双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。膀胱充盈良好,境界清楚。子宫左前壁见一类圆形结节,大小约25MM×20MM,密度尚均匀,增强后轻中度强化,子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。颈部结构清晰,各血管充盈良好。甲状腺右侧叶见类圆形稍低密度结节,直径约5MM,增强后轻度强化。喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。双侧颌下腺、腮腺大小形态正常,密度均匀。颈部肌群排列对称,密度均匀,肌间隙未见明显异常。余颈部未见肿大淋巴结。腰1椎体见类圆形致密灶,边界模糊,骶1左份见小结节状致密灶,边界尚清。左乳癌术后改变,左前胸壁局部未见明确肿物。左锁上区肿大淋巴结,考虑转移。右中肺少许索条。脂肪肝。子宫左前壁结节,考虑子宫肌瘤。甲状腺右侧叶稍低密度小结节,考虑结节性甲状腺肿可能大。腰1椎体骨质改变,考虑转移瘤;骶1椎体左份稍高密度小结节,建议观察。</t>
+          <t>左乳癌术后，左侧胸壁未见明确增厚结节，右乳未见明确肿物。左锁上区见肿大淋巴结，最大约16MM×14MM，密度不均匀，增强后不均匀明显强化。双侧腋窝未见明确肿大淋巴结。双肺纹理清晰，右中肺见少许索条，余肺内未见实质性病变。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝实质密度普遍不均匀减低，增强后强化密度尚均匀，未见异常强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉未见异常。脾、胰腺大小、形态正常，密度均匀。双肾、双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。子宫左前壁见一类圆形结节，大小约25MM×20MM，密度尚均匀，增强后轻中度强化，子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。颈部结构清晰，各血管充盈良好。甲状腺右侧叶见类圆形稍低密度结节，直径约5MM，增强后轻度强化。喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。双侧颌下腺、腮腺大小形态正常，密度均匀。颈部肌群排列对称，密度均匀，肌间隙未见明显异常。余颈部未见肿大淋巴结。腰1椎体见类圆形致密灶，边界模糊，骶1左份见小结节状致密灶，边界尚清。左乳癌术后改变，左前胸壁局部未见明确肿物。左锁上区肿大淋巴结，考虑转移。右中肺少许索条。脂肪肝。子宫左前壁结节，考虑子宫肌瘤。甲状腺右侧叶稍低密度小结节，考虑结节性甲状腺肿可能大。腰1椎体骨质改变，考虑转移瘤；骶1椎体左份稍高密度小结节，建议观察。</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4789,7 +4789,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>右乳外上象限示最大截面约2.8CM×2.2CM不规则略高密度影,边缘毛糙,增强扫描呈不均质明显强化,内示斑点状致密影。另右乳内示颗粒状致密影。左乳未见明显异常。右侧腋窝示多发结节灶,强化较著,大者短径约1.5CM,边缘毛糙。双侧锁骨上示大者短径约0.7CM淋巴结。双侧内乳区、肺门及纵隔内未见肿大淋巴结。双肺野清晰。背部皮下脂肪层内示小团片状致密影。甲状腺左叶示低密度灶,增强呈不均质较显著强化,边界欠清。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。1.右乳癌并右腋窝淋巴结转移。2.右乳钙化灶。3.甲状腺低密度灶,请结合其他检查。4.双侧锁骨上稍大淋巴结。5.背部钙化灶。6.颅脑CT扫描未见明显异常。</t>
+          <t>右乳外上象限示最大截面约2.8CM×2.2CM不规则略高密度影，边缘毛糙，增强扫描呈不均质明显强化，内示斑点状致密影。另右乳内示颗粒状致密影。左乳未见明显异常。右侧腋窝示多发结节灶，强化较著，大者短径约1.5CM，边缘毛糙。双侧锁骨上示大者短径约0.7CM淋巴结。双侧内乳区、肺门及纵隔内未见肿大淋巴结。双肺野清晰。背部皮下脂肪层内示小团片状致密影。甲状腺左叶示低密度灶，增强呈不均质较显著强化，边界欠清。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。1.右乳癌并右腋窝淋巴结转移。2.右乳钙化灶。3.甲状腺低密度灶，请结合其他检查。4.双侧锁骨上稍大淋巴结。5.背部钙化灶。6.颅脑CT扫描未见明显异常。</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -4811,7 +4811,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>右肺上叶术后,术区软组织密度影,复发可能。双肺多发结节,考虑转移。纵隔左肺门多发淋巴结,转移待排。肝内多发低密度灶,请结合腹部检查评价。右肺上叶术后,体积缩小,术区可见软组织密度影,约17MM×17MM(IM15);右肺及左肺上叶可见多发结节影,右肺分布为著,较大约11MM×9MM(IM20),部分与胸膜关系密切。纵隔4L、10L组及左肺门见多发淋巴结,较大约17MM×9MM(IM30);右肺门、双侧锁骨上区及双腋下未见肿大淋巴结。双侧胸膜欠光滑,未见胸水征象。扫及胸廓诸骨未见明确破坏征象。扫及肝内多发低密度灶。</t>
+          <t>右肺上叶术后，术区软组织密度影，复发可能。双肺多发结节，考虑转移。纵隔左肺门多发淋巴结，转移待排。肝内多发低密度灶，请结合腹部检查评价。右肺上叶术后，体积缩小，术区可见软组织密度影，约17MM×17MM(IM15)；右肺及左肺上叶可见多发结节影，右肺分布为著，较大约11MM×9MM(IM20)，部分与胸膜关系密切。纵隔4L、10L组及左肺门见多发淋巴结，较大约17MM×9MM(IM30)；右肺门、双侧锁骨上区及双腋下未见肿大淋巴结。双侧胸膜欠光滑，未见胸水征象。扫及胸廓诸骨未见明确破坏征象。扫及肝内多发低密度灶。</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -4828,7 +4828,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行PET/CT断层显像。脑部PET/CT图像示脑实质内未见明显糖代谢异常增高灶或明显占位;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET/CT图像示眼球、眼眶内未见明显糖代谢异常;眼球环壁完整,球内未见异常密度灶,视神经未见明显异常密度灶,眶内脂肪间隙清晰。鼻咽部PET/CT图像示鼻咽部、咽旁间隙均未见明显糖代谢异常增高及占位;咽旁间隙清晰;右侧上颌窦及筛窦粘膜增厚,考虑为慢性炎症。颈部PET/CT图像示左侧锁骨区见糖代谢增高的淋巴结,大小约为6.4MM×5.9MM,平均CT值约为38.3HU,最大SUV值约为5.6;双侧颌下见糖代谢增高的淋巴结,较大者位于左侧,大小约为14.0MM×7.3MM,平均CT值约为66.8HU,最大SUV值约为3.6,考虑为炎症;甲状腺无明显肿大,未见明显糖代谢异常增高灶及占位;口咽及喉咽部未见明显糖代谢异常增高灶及占位。胸部PET/CT图像示左肺下叶外后基底段见糖代谢增高的结节,大小约为18.3MM×18.1MM,平均CT值约为20.3HU,最大SUV值约为11.9,边缘见分叶,牵拉邻近胸膜;左肺门不大,伴糖代谢增高,最大SUV值约为4.5,考虑为非特异性炎症;右肺上叶后段及左肺上叶舌段见小结节,直径小于5.0MM,其中右肺上叶结节伴糖代谢增高,最大SUV值约为1.1;各级支气管腔通畅;前纵隔见低密度结节,大小约为10.6MM×10.3MM,平均CT值约为43.4HU,最大SUV值约为0.7;双侧胸腔无积液;心脏无明显增大;双侧腋窝未见明显糖代谢异常增高灶及肿大淋巴结;右乳外侧象限钙化灶,左侧乳腺未见明显糖代谢异常增高灶及占位。腹部PET/CT图像示右侧结肠旁沟系膜增厚伴糖代谢异常增高,最大SUV值约为4.1;肝脏右叶钙化灶;肝脏右叶近下腔静脉处局部糖代谢增高,直径约为7.1MM,早期及延迟1.5小时后最大SUV值均约为4.3;胃壁生理性显像剂分布;肠道内见显像剂生理性分布;脾脏不大,密度均匀,未见明显糖代谢异常增高灶及占位;胆囊和胆总管结石;双肾、胰腺、双侧肾上腺未见明显糖代谢异常增高灶及占位;腹腔无积液。盆部PET/CT图像示肠道内见显像剂生理性分布;膀胱增大,内见显像剂生理性积聚;子宫钙化灶;双侧附件区未见明显糖代谢异常增高灶及占位;双侧腹股沟未见明显糖代谢异常增高灶及肿大淋巴结;盆腔无积液;左侧臀部肌间隙内见多枚糖代谢增高的不规则结节,较大者大小约为18.4MM×13.4MM,平均CT值约为32.7HU,最大SUV值约为2.3。骨骼及肌肉PET/CT图像示第4、12胸椎、第2腰椎、骶骨及左侧股骨上段见溶骨性骨质破坏伴糖代谢异常增高,糖代谢较高三处分别位于第4胸椎、第12胸椎及左侧股骨,最大SUV值约为14.1、12.9和9.1,其中第4、12胸椎骨皮质连续性中断。肺MT靶向治疗后:左肺下叶癌灶肿瘤代谢活跃伴左侧锁骨区淋巴结转移,全身多处骨转移伴第4、12胸椎病理性骨折;右肺上叶转移和右侧结肠旁沟转移可能;左肺上叶转移不除外;脑实质内未见明显糖代谢异常增高灶,请结合临床;前纵隔良性病变;右乳钙化灶;肝脏右叶生理性摄取可能,请结合增强MRI检查;肝脏钙化灶;胆囊和胆总管结石;子宫肌瘤伴钙化;左侧臀部肌间隙良性病变可能。</t>
+          <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行PET/CT断层显像。脑部PET/CT图像示脑实质内未见明显糖代谢异常增高灶或明显占位；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET/CT图像示眼球、眼眶内未见明显糖代谢异常；眼球环壁完整，球内未见异常密度灶，视神经未见明显异常密度灶，眶内脂肪间隙清晰。鼻咽部PET/CT图像示鼻咽部、咽旁间隙均未见明显糖代谢异常增高及占位；咽旁间隙清晰；右侧上颌窦及筛窦粘膜增厚，考虑为慢性炎症。颈部PET/CT图像示左侧锁骨区见糖代谢增高的淋巴结，大小约为6.4MM×5.9MM，平均CT值约为38.3HU，最大SUV值约为5.6；双侧颌下见糖代谢增高的淋巴结，较大者位于左侧，大小约为14.0MM×7.3MM，平均CT值约为66.8HU，最大SUV值约为3.6，考虑为炎症；甲状腺无明显肿大，未见明显糖代谢异常增高灶及占位；口咽及喉咽部未见明显糖代谢异常增高灶及占位。胸部PET/CT图像示左肺下叶外后基底段见糖代谢增高的结节，大小约为18.3MM×18.1MM，平均CT值约为20.3HU，最大SUV值约为11.9，边缘见分叶，牵拉邻近胸膜；左肺门不大，伴糖代谢增高，最大SUV值约为4.5，考虑为非特异性炎症；右肺上叶后段及左肺上叶舌段见小结节，直径小于5.0MM，其中右肺上叶结节伴糖代谢增高，最大SUV值约为1.1；各级支气管腔通畅；前纵隔见低密度结节，大小约为10.6MM×10.3MM，平均CT值约为43.4HU，最大SUV值约为0.7；双侧胸腔无积液；心脏无明显增大；双侧腋窝未见明显糖代谢异常增高灶及肿大淋巴结；右乳外侧象限钙化灶，左侧乳腺未见明显糖代谢异常增高灶及占位。腹部PET/CT图像示右侧结肠旁沟系膜增厚伴糖代谢异常增高，最大SUV值约为4.1；肝脏右叶钙化灶；肝脏右叶近下腔静脉处局部糖代谢增高，直径约为7.1MM，早期及延迟1.5小时后最大SUV值均约为4.3；胃壁生理性显像剂分布；肠道内见显像剂生理性分布；脾脏不大，密度均匀，未见明显糖代谢异常增高灶及占位；胆囊和胆总管结石；双肾、胰腺、双侧肾上腺未见明显糖代谢异常增高灶及占位；腹腔无积液。盆部PET/CT图像示肠道内见显像剂生理性分布；膀胱增大，内见显像剂生理性积聚；子宫钙化灶；双侧附件区未见明显糖代谢异常增高灶及占位；双侧腹股沟未见明显糖代谢异常增高灶及肿大淋巴结；盆腔无积液；左侧臀部肌间隙内见多枚糖代谢增高的不规则结节，较大者大小约为18.4MM×13.4MM，平均CT值约为32.7HU，最大SUV值约为2.3。骨骼及肌肉PET/CT图像示第4、12胸椎、第2腰椎、骶骨及左侧股骨上段见溶骨性骨质破坏伴糖代谢异常增高，糖代谢较高三处分别位于第4胸椎、第12胸椎及左侧股骨，最大SUV值约为14.1、12.9和9.1，其中第4、12胸椎骨皮质连续性中断。肺MT靶向治疗后：左肺下叶癌灶肿瘤代谢活跃伴左侧锁骨区淋巴结转移，全身多处骨转移伴第4、12胸椎病理性骨折；右肺上叶转移和右侧结肠旁沟转移可能；左肺上叶转移不除外；脑实质内未见明显糖代谢异常增高灶，请结合临床；前纵隔良性病变；右乳钙化灶；肝脏右叶生理性摄取可能，请结合增强MRI检查；肝脏钙化灶；胆囊和胆总管结石；子宫肌瘤伴钙化；左侧臀部肌间隙良性病变可能。</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -4850,7 +4850,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>左肺上叶见不规则软组织影,边缘见毛刺,邻近胸膜凹陷,大小约2.3CM×1.7CM,右肺上叶见多发小结节,部分钙化,最大直径约5MM。左肺尖见斑点状模糊影,两肺另见散在少许条索影及结节状钙化灶,所见各支气管腔通畅,肺门及纵隔未见肿大淋巴结,主动脉弓及部分冠脉壁钙化。胸膜无增厚,胸腔内无积液。左侧第3后肋骨见类圆形高密度影,其内密度不均,大小约2.8CM×2.3CM,T3、T4胸椎椎体及附件内见类圆形低密度影。双侧肩胛骨局部不均密度增高。甲状腺左右叶见斑点状钙化,甲状腺峡部见低密度结节,直径约1.3CM。左肺上叶MT,右肺上叶小结节,与(17-12-06)相仿,随访;左侧第3后肋及T3、T4胸椎、肩胛骨病变,转移可能,建议骨扫描检查;两肺慢性炎症及陈旧灶。甲状腺钙化。甲状腺峡部结节。</t>
+          <t>左肺上叶见不规则软组织影，边缘见毛刺，邻近胸膜凹陷，大小约2.3CM×1.7CM，右肺上叶见多发小结节，部分钙化，最大直径约5MM。左肺尖见斑点状模糊影，两肺另见散在少许条索影及结节状钙化灶，所见各支气管腔通畅，肺门及纵隔未见肿大淋巴结，主动脉弓及部分冠脉壁钙化。胸膜无增厚，胸腔内无积液。左侧第3后肋骨见类圆形高密度影，其内密度不均，大小约2.8CM×2.3CM，T3、T4胸椎椎体及附件内见类圆形低密度影。双侧肩胛骨局部不均密度增高。甲状腺左右叶见斑点状钙化，甲状腺峡部见低密度结节，直径约1.3CM。左肺上叶MT，右肺上叶小结节，与(17-12-06)相仿，随访；左侧第3后肋及T3、T4胸椎、肩胛骨病变，转移可能，建议骨扫描检查；两肺慢性炎症及陈旧灶。甲状腺钙化。甲状腺峡部结节。</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -4872,7 +4872,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>左肺上叶肺门区可见片状不规则密度增高影,未见明显强化。纵隔、肺门未见明确肿大淋巴结。肝右后叶实质内示低密度肿块,形态不规则,大者截面约1.4CM×2.6CM,增强后其内示不均质斑点状强化。胆囊充盈可,壁不厚。胰、脾、双侧肾上腺、双肾、膀胱、直肠、前列腺未见异常。腹膜后未见显著增大淋巴结。多发腰椎椎体、左侧髂骨示成骨性骨质破坏;右侧第八肋骨局部可见成骨性骨质改变。双侧局部颈部结构对称,鼻咽、口咽、喉、气管、甲状腺及各副鼻窦未见异常。双侧颈部未见肿大淋巴结。1.结合临床,左肺癌、直肠癌治疗后,病变显示不清;肝转移2.多发腰椎转移,右侧第八肋骨局部成骨性改变,请结合临床3.颈部扫描未见异常</t>
+          <t>左肺上叶肺门区可见片状不规则密度增高影，未见明显强化。纵隔、肺门未见明确肿大淋巴结。肝右后叶实质内示低密度肿块，形态不规则，大者截面约1.4CM×2.6CM，增强后其内示不均质斑点状强化。胆囊充盈可，壁不厚。胰、脾、双侧肾上腺、双肾、膀胱、直肠、前列腺未见异常。腹膜后未见显著增大淋巴结。多发腰椎椎体、左侧髂骨示成骨性骨质破坏；右侧第八肋骨局部可见成骨性骨质改变。双侧局部颈部结构对称，鼻咽、口咽、喉、气管、甲状腺及各副鼻窦未见异常。双侧颈部未见肿大淋巴结。1.结合临床，左肺癌、直肠癌治疗后，病变显示不清；肝转移2.多发腰椎转移，右侧第八肋骨局部成骨性改变，请结合临床3.颈部扫描未见异常</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -4889,7 +4889,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>1.右肺下叶癌并右侧胸膜转移、双肺多发转移,较前2014-11-07好转;纵隔、双锁上、右侧心膈角多发小或稍大淋巴结,较前部分缩小,部分变化不著3.胸椎T11骨转移,变化不著;第1腰椎附件局限性密度增高,请结合临床4.左侧胸膜略厚,变化不著右肺下叶后基底段可见一软组织肿块,边缘分叶毛刺,与邻近胸膜关系密切,最大截面约为1.7CM×1.5CM(纵隔窗),增强后中度强化。双肺野内可见多发大小不一的结节影,大者长径约为0.7CM,纵隔内右上气管旁、腔静脉后、主肺动脉窗区、隆突下、双锁上、右侧心膈角区可见多发肿大或小淋巴结,大者短径约为0.6CM。右侧胸膜(含叶间胸膜)增厚,局部呈类结节或线状强化。左侧胸膜略厚。T11椎体可见溶骨性骨质破坏。第1腰椎椎弓根密度示增高。</t>
+          <t>1.右肺下叶癌并右侧胸膜转移、双肺多发转移，较前2014-11-07好转；纵隔、双锁上、右侧心膈角多发小或稍大淋巴结，较前部分缩小，部分变化不著3.胸椎T11骨转移，变化不著；第1腰椎附件局限性密度增高，请结合临床4.左侧胸膜略厚，变化不著右肺下叶后基底段可见一软组织肿块，边缘分叶毛刺，与邻近胸膜关系密切，最大截面约为1.7CM×1.5CM(纵隔窗)，增强后中度强化。双肺野内可见多发大小不一的结节影，大者长径约为0.7CM，纵隔内右上气管旁、腔静脉后、主肺动脉窗区、隆突下、双锁上、右侧心膈角区可见多发肿大或小淋巴结，大者短径约为0.6CM。右侧胸膜(含叶间胸膜)增厚，局部呈类结节或线状强化。左侧胸膜略厚。T11椎体可见溶骨性骨质破坏。第1腰椎椎弓根密度示增高。</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -4911,7 +4911,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>右肺上叶小结节(IMG25),右肺中叶及两肺下叶见少许纤维条索影,两侧叶间胸膜增厚,所见各支气管腔通畅,肺门及纵隔未见肿大淋巴结,心包及两侧胸腔内见少许水样密度。部分椎体及肋骨、胸骨、肩胛骨及双侧肱骨头内见虫蚀样骨质破坏,左侧第9后肋骨质破坏周围见软组织肿块,另见双侧多发肋骨骨皮质欠规整伴周围骨痂形成。附见左侧乳腺内见软组织肿块,内见斑点状钙化,邻近皮肤增厚粘连。左侧乳腺占位,MT可能,部分椎体及肋骨、胸骨、肩胛骨及双侧肱骨头转移,右肺上叶小结节,心包及双侧少量胸腔积液,双肺少许陈旧灶。双侧多发肋骨陈旧性骨折。</t>
+          <t>右肺上叶小结节(IMG25)，右肺中叶及两肺下叶见少许纤维条索影，两侧叶间胸膜增厚，所见各支气管腔通畅，肺门及纵隔未见肿大淋巴结，心包及两侧胸腔内见少许水样密度。部分椎体及肋骨、胸骨、肩胛骨及双侧肱骨头内见虫蚀样骨质破坏，左侧第9后肋骨质破坏周围见软组织肿块，另见双侧多发肋骨骨皮质欠规整伴周围骨痂形成。附见左侧乳腺内见软组织肿块，内见斑点状钙化，邻近皮肤增厚粘连。左侧乳腺占位，MT可能，部分椎体及肋骨、胸骨、肩胛骨及双侧肱骨头转移，右肺上叶小结节，心包及双侧少量胸腔积液，双肺少许陈旧灶。双侧多发肋骨陈旧性骨折。</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -4928,7 +4928,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>右乳炎性乳癌术后:右乳片状糖代谢异常增高,考虑术后改变可能,肿瘤残留不除外,请结合临床;左乳内上象限小钙化灶;右肺中叶磨玻璃结节伴轻度糖代谢增高,考虑为原发性MT可能,请结合临床密切随访;脂肪肝。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼内肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结;口咽、喉咽部无占位;甲状腺无肿大,未见明显占位。胸部PET/CT图像示右乳肿块切除术后,局部软组织明显肿胀,脂肪间隙内见索条影及气体影,腺体不规则增厚,伴片状糖代谢异常增高,最大SUV值约为3.7;左乳内上象限见点状钙化灶;双侧腋窝无明显糖代谢异常增高的肿大淋巴结。右肺上叶前段见密度不均的磨玻璃结节,大小约为17.0MM×20.8MM,内见扩张的支气管影,周边有血管穿行,局部有胸膜牵拉,局部伴轻度糖代谢增高,最大SUV值约为1.2;右上肺胸膜局部稍增厚;纵隔及双肺门无殊;双侧胸腔无积液;心脏无明显增大。腹部PET/CT图像示胃壁充盈欠佳,胃窦局部糖代谢轻度增高,最大SUV值约为4.6,未见明显占位征象,考虑为炎症或生理性摄取;肠道呈线型生理性糖代谢增强;肝脏表面光整,各叶比例匀称,实质内密度普遍减低,明显低于脾脏密度;肝内外胆管无扩张;胆囊术后缺如,胆囊窝内见金属密度影;脾门处见直径约为9.0MM结节,密度与脾脏密度近似,考虑为副脾;脾、胰、双肾、肾上腺无殊;腹膜后散在无明显糖代谢异常增高的肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁光滑无增厚;子宫和双附件区未见明显占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗示诸骨未见明显骨质破坏;颈、胸、腰、骶椎体及椎小关节骨质增生,考虑为退变。</t>
+          <t>右乳炎性乳癌术后：右乳片状糖代谢异常增高，考虑术后改变可能，肿瘤残留不除外，请结合临床；左乳内上象限小钙化灶；右肺中叶磨玻璃结节伴轻度糖代谢增高，考虑为原发性MT可能，请结合临床密切随访；脂肪肝。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示右乳肿块切除术后，局部软组织明显肿胀，脂肪间隙内见索条影及气体影，腺体不规则增厚，伴片状糖代谢异常增高，最大SUV值约为3.7；左乳内上象限见点状钙化灶；双侧腋窝无明显糖代谢异常增高的肿大淋巴结。右肺上叶前段见密度不均的磨玻璃结节，大小约为17.0MM×20.8MM，内见扩张的支气管影，周边有血管穿行，局部有胸膜牵拉，局部伴轻度糖代谢增高，最大SUV值约为1.2；右上肺胸膜局部稍增厚；纵隔及双肺门无殊；双侧胸腔无积液；心脏无明显增大。腹部PET/CT图像示胃壁充盈欠佳，胃窦局部糖代谢轻度增高，最大SUV值约为4.6，未见明显占位征象，考虑为炎症或生理性摄取；肠道呈线型生理性糖代谢增强；肝脏表面光整，各叶比例匀称，实质内密度普遍减低，明显低于脾脏密度；肝内外胆管无扩张；胆囊术后缺如，胆囊窝内见金属密度影；脾门处见直径约为9.0MM结节，密度与脾脏密度近似，考虑为副脾；脾、胰、双肾、肾上腺无殊；腹膜后散在无明显糖代谢异常增高的肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁光滑无增厚；子宫和双附件区未见明显占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示诸骨未见明显骨质破坏；颈、胸、腰、骶椎体及椎小关节骨质增生，考虑为退变。</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -4941,7 +4941,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>肺癌术后、脑转移、淋巴结转移放化疗后复查,对比2014-09-26片:右上肺叶术后缺失,右肺中叶纵膈旁见一肿块,大小约23MM×45MM,边界欠清,增强扫描明显强化,病灶周围见少量条索灶,边界欠清。双肺可见散在小结节,边界尚清,直径约2MM~5MM,密度尚均匀。右肺下叶后基底段近胸膜处见一类结节,边界清,短径约3MM,大致同前。右上肺支气管中断,余气管及支气管分支通畅。右侧上气管旁、血管前、主肺动脉窗、隆突下及双肺门见肿大淋巴结,边界尚清,大者大小约15MM×11MM,增强扫描较明显强化。双侧胸腔未见积液。右侧胸膜稍增厚,左侧胸膜无增厚、粘连。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度不均匀。肝内见多个低密度灶,最大者约23MM×19MM,边界欠清,增强扫描轻度强化,较前增大、增多。肝S8见一小低密度灶,直径约5MM,边界清,增强扫描动脉期见少许点状强化,门脉期、延迟期强化范围有扩大。胆囊大小正常,其内未见结石影。肝内胆管、胆总管未见扩张,其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常,密度不均匀,见一结节低密度灶,边界欠清,大小约12MM×12MM,轻度强化,较前变化不大。胰腺大小、形态正常,密度均匀。双肾、双肾上腺所见正常。腹膜后未见肿大淋巴结。双颈结构清晰,各血管充盈良好,甲状腺双叶及峡部形态正常,密度均匀,未见占位性病变。喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。双侧颌下腺、腮腺大小形态正常,密度均匀。左颈IV、V区、左侧锁骨上窝见多个淋巴结,边界清,最大短径约11MM,呈不均匀强化或明显强化。右侧第5后肋局部骨质不连续,考虑术后改变,C6椎体、T12椎体及左侧椎板、L2、L3椎体见不规则高密度灶,病变范围较前增大,余所见骨质未见明确破坏征象。肺癌术后、脑转移、淋巴结转移放化疗后复查,对比2014-09-26片:右肺中叶纵膈旁肿块,较前增大,考虑肿瘤复发。右肺新发小结节,考虑转移瘤。右肺下叶后基底段类结节,大致同前,考虑增殖灶。纵隔、双肺门及左颈IV、V区、左侧锁骨上窝多发淋巴结肿大,大致同前。肝内低密度灶,较前增大、增多,考虑转移瘤。肝S8小低密度灶,大致同前,可疑血管瘤。脾内低密度灶,较前未见明显变化,血管瘤?C6椎体、T12椎体及左侧椎板、L2、L3椎体转移瘤,范围较前增大。</t>
+          <t>肺癌术后、脑转移、淋巴结转移放化疗后复查，对比2014-09-26片：右上肺叶术后缺失，右肺中叶纵膈旁见一肿块，大小约23MM×45MM，边界欠清，增强扫描明显强化，病灶周围见少量条索灶，边界欠清。双肺可见散在小结节，边界尚清，直径约2MM~5MM，密度尚均匀。右肺下叶后基底段近胸膜处见一类结节，边界清，短径约3MM，大致同前。右上肺支气管中断，余气管及支气管分支通畅。右侧上气管旁、血管前、主肺动脉窗、隆突下及双肺门见肿大淋巴结，边界尚清，大者大小约15MM×11MM，增强扫描较明显强化。双侧胸腔未见积液。右侧胸膜稍增厚，左侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝内见多个低密度灶，最大者约23MM×19MM，边界欠清，增强扫描轻度强化，较前增大、增多。肝S8见一小低密度灶，直径约5MM，边界清，增强扫描动脉期见少许点状强化，门脉期、延迟期强化范围有扩大。胆囊大小正常，其内未见结石影。肝内胆管、胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度不均匀，见一结节低密度灶，边界欠清，大小约12MM×12MM，轻度强化，较前变化不大。胰腺大小、形态正常，密度均匀。双肾、双肾上腺所见正常。腹膜后未见肿大淋巴结。双颈结构清晰，各血管充盈良好，甲状腺双叶及峡部形态正常，密度均匀，未见占位性病变。喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。双侧颌下腺、腮腺大小形态正常，密度均匀。左颈IV、V区、左侧锁骨上窝见多个淋巴结，边界清，最大短径约11MM，呈不均匀强化或明显强化。右侧第5后肋局部骨质不连续，考虑术后改变，C6椎体、T12椎体及左侧椎板、L2、L3椎体见不规则高密度灶，病变范围较前增大，余所见骨质未见明确破坏征象。肺癌术后、脑转移、淋巴结转移放化疗后复查，对比2014-09-26片：右肺中叶纵膈旁肿块，较前增大，考虑肿瘤复发。右肺新发小结节，考虑转移瘤。右肺下叶后基底段类结节，大致同前，考虑增殖灶。纵隔、双肺门及左颈IV、V区、左侧锁骨上窝多发淋巴结肿大，大致同前。肝内低密度灶，较前增大、增多，考虑转移瘤。肝S8小低密度灶，大致同前，可疑血管瘤。脾内低密度灶，较前未见明显变化，血管瘤?C6椎体、T12椎体及左侧椎板、L2、L3椎体转移瘤，范围较前增大。</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -4958,7 +4958,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>1.结合临床,右肺癌治疗后,较前(2016-1-20)略缩小2.结合临床,左乳癌治疗后,较前变化不著3.左锁上、纵隔及肺门小或稍大淋巴结,变化不著4.右肺局限性炎症及纤维炎性变,双肺部分结节灶较前增大,可疑转移,部分变化不著,建议观察,双侧叶间胸膜增厚,均变化不著右肺尖示小片状不规则软组织密度影,截面约1.3CM×0.8CM(肺窗),边缘分叶、毛刺,牵拉邻近胸膜凹陷,增强后呈不均匀强化,其内可见小空泡影。另于右肺野内见多发斑片状及条索状密度增高影,边缘模糊,并可见少许类结节灶,大者直径约0.6CM。另右肺近斜裂胸膜处可见片状密度增高影,形态不规则,内见支气管充气征。双侧叶间胸膜示增厚,左侧叶间胸膜及左肺下叶见小类结节灶,大者直径约0.5CM。左乳外上象限见一不规则软组织结节灶,长径约0.6CM,边缘分叶可见少许毛刺,增强后呈轻度强化。左锁上、纵隔内右上气管旁、气管前腔静脉后、主肺动脉窗区、隆突下、双肺门见多发小或稍大淋巴结,大者短径约0.7CM,部分内可见钙化。</t>
+          <t>1.结合临床，右肺癌治疗后，较前(2016-1-20)略缩小2.结合临床，左乳癌治疗后，较前变化不著3.左锁上、纵隔及肺门小或稍大淋巴结，变化不著4.右肺局限性炎症及纤维炎性变，双肺部分结节灶较前增大，可疑转移，部分变化不著，建议观察，双侧叶间胸膜增厚，均变化不著右肺尖示小片状不规则软组织密度影，截面约1.3CM×0.8CM(肺窗)，边缘分叶、毛刺，牵拉邻近胸膜凹陷，增强后呈不均匀强化，其内可见小空泡影。另于右肺野内见多发斑片状及条索状密度增高影，边缘模糊，并可见少许类结节灶，大者直径约0.6CM。另右肺近斜裂胸膜处可见片状密度增高影，形态不规则，内见支气管充气征。双侧叶间胸膜示增厚，左侧叶间胸膜及左肺下叶见小类结节灶，大者直径约0.5CM。左乳外上象限见一不规则软组织结节灶，长径约0.6CM，边缘分叶可见少许毛刺，增强后呈轻度强化。左锁上、纵隔内右上气管旁、气管前腔静脉后、主肺动脉窗区、隆突下、双肺门见多发小或稍大淋巴结，大者短径约0.7CM，部分内可见钙化。</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -4975,7 +4975,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>1.右肺下叶占位,考虑肺癌治疗后,较前(2016-8-29)缩小;双肺结节灶,考虑转移,部分略缩小,部分变化不著;骨转移,大部分变化不著,部分密度略增高2.右肺门及纵隔内稍大淋巴结,变化不著3.甲状腺低密度灶,略增大4.考虑肝囊肿、血管瘤,变化不著右肺下叶近肺门区示软组织结节灶,不均质强化,截面约1.8CM×1.3CM,远端肺野内示斑片密度增高影。双肺内示多发结节灶,大者短径约0.4CM。右肺门及纵隔内示稍大淋巴结,大者短径约0.7CM。甲状腺左叶示低密度灶。扫描野内肝内示类囊性密度灶及结节状明显强化灶,部分肝内胆管略扩张。右乳腺体略增多。部分椎骨及肋骨示骨质破坏。剑突区密度增高。</t>
+          <t>1.右肺下叶占位，考虑肺癌治疗后，较前(2016-8-29)缩小；双肺结节灶，考虑转移，部分略缩小，部分变化不著；骨转移，大部分变化不著，部分密度略增高2.右肺门及纵隔内稍大淋巴结，变化不著3.甲状腺低密度灶，略增大4.考虑肝囊肿、血管瘤，变化不著右肺下叶近肺门区示软组织结节灶，不均质强化，截面约1.8CM×1.3CM，远端肺野内示斑片密度增高影。双肺内示多发结节灶，大者短径约0.4CM。右肺门及纵隔内示稍大淋巴结，大者短径约0.7CM。甲状腺左叶示低密度灶。扫描野内肝内示类囊性密度灶及结节状明显强化灶，部分肝内胆管略扩张。右乳腺体略增多。部分椎骨及肋骨示骨质破坏。剑突区密度增高。</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -4992,7 +4992,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>右肺下叶占位,符合肺癌。双肺门区纵隔多发淋巴结转移,右肺门区为重;并右中、下叶肺内病变考虑癌性淋巴管炎。左肺多发可疑小结节,转移不除外。右肺下叶软组织密度肿物,边缘尚清,呈浅分叶状,直径约3CM(IMA35肺窗),细毛刺影与脏层胸膜相连,局部胸膜稍厚并少量胸水。右侧肺门见团块状影包绕中下叶为主各血管支气管结构,较大层面约7CM×4CM(IMA39),并向远端肺内延伸,支气管分支狭窄。右肺中叶、下叶支气管血管束明显增粗、紊乱,并边缘模糊及斑片状透亮度降低。纵隔内4、5、7及左侧肺门多发肿大淋巴结。左肺多发可疑小结节影(IMA33、39),边缘模糊。左侧未见胸水征象。扫及胸廓诸骨未见明显骨破坏征象。</t>
+          <t>右肺下叶占位，符合肺癌。双肺门区纵隔多发淋巴结转移，右肺门区为重；并右中、下叶肺内病变考虑癌性淋巴管炎。左肺多发可疑小结节，转移不除外。右肺下叶软组织密度肿物，边缘尚清，呈浅分叶状，直径约3CM(IMA35肺窗)，细毛刺影与脏层胸膜相连，局部胸膜稍厚并少量胸水。右侧肺门见团块状影包绕中下叶为主各血管支气管结构，较大层面约7CM×4CM(IMA39)，并向远端肺内延伸，支气管分支狭窄。右肺中叶、下叶支气管血管束明显增粗、紊乱，并边缘模糊及斑片状透亮度降低。纵隔内4、5、7及左侧肺门多发肿大淋巴结。左肺多发可疑小结节影(IMA33、39)，边缘模糊。左侧未见胸水征象。扫及胸廓诸骨未见明显骨破坏征象。</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -5014,7 +5014,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>右中肺癌术后,左上肺叶病灶靶向治疗后,与2016-11-28片对比:右中肺叶缺失,右下肺叶外基底段及内基底段可见斑片、条索状灶,边界清,其内可见支气管气象,大致同前。左上肺纵隔旁可见一软组织肿块,大小约35MM×15MM,边界欠清,形态不规则,边缘毛糙,其内见多发钙化点,增强扫描不均匀明显强化,邻近肺组织见斑片灶,边界模糊,见支气管气象,较前稍增大。双肺可见弥漫分布类结节灶,部分边界清,部分边界模糊,最大者直径约8MM,较前增多、增大。气管及余双侧主支气管分支通畅。双下气管旁、双侧肺门、主肺动脉窗、隆突下可见多个淋巴结,最大者位于右肺门约14MM×15MM,部分内见坏死,增强不均匀强化。双侧胸膜稍增厚,双侧胸腔少量积液。甲状腺双叶见多发类圆形低密度灶,大者位于右侧,约12MM×10MM,边界清,增强轻度强化,大致同前。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度均匀,增强扫描未见强化灶。肝内外胆管未见扩张;胆囊大小正常,其内未见结石影。门静脉未见异常。脾大小正常,内见一稍低密灶,边界不清,增强扫描轻度强化,大小约4MM×4MM,大致同前。胰腺大小、形态正常,密度均匀。左肾可见多个类圆形低密度灶,较大者大小约23MM×17MM,边界清,增强未见强化。双肾上腺未见异常。肝门部、腹腔干分支、腹主动脉旁见多个小淋巴结,较大者短径约7MM,边界清,大致同前。左侧肩胛骨、胸骨体、T2右侧附件、T9-10、T12、L1椎体及部分附件、右侧第1、3、6、9肋、左侧第11后肋见骨质破坏。右侧第5、第6后肋骨皮质受损凹陷,呈术后改变。右中肺癌术后,左上肺叶病灶靶向治疗后:双肺弥漫分布的结节,考虑转移,较前增多、增大。左上肺纵隔旁软组织灶,较前稍增大。右下肺条索、斑片灶较前无明显变化。纵隔、肺门及腹腔、腹膜后多发淋巴结,较前未见明显变化。双侧胸腔少量积液。多发骨转移瘤,较前未见明显变化。脾内病灶基本同前。左肾囊肿。甲状腺双叶多发病变,较前未见明显变化。</t>
+          <t>右中肺癌术后，左上肺叶病灶靶向治疗后，与2016-11-28片对比：右中肺叶缺失，右下肺叶外基底段及内基底段可见斑片、条索状灶，边界清，其内可见支气管气象，大致同前。左上肺纵隔旁可见一软组织肿块，大小约35MM×15MM，边界欠清，形态不规则，边缘毛糙，其内见多发钙化点，增强扫描不均匀明显强化，邻近肺组织见斑片灶，边界模糊，见支气管气象，较前稍增大。双肺可见弥漫分布类结节灶，部分边界清，部分边界模糊，最大者直径约8MM，较前增多、增大。气管及余双侧主支气管分支通畅。双下气管旁、双侧肺门、主肺动脉窗、隆突下可见多个淋巴结，最大者位于右肺门约14MM×15MM，部分内见坏死，增强不均匀强化。双侧胸膜稍增厚，双侧胸腔少量积液。甲状腺双叶见多发类圆形低密度灶，大者位于右侧，约12MM×10MM，边界清，增强轻度强化，大致同前。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀，增强扫描未见强化灶。肝内外胆管未见扩张；胆囊大小正常，其内未见结石影。门静脉未见异常。脾大小正常，内见一稍低密灶，边界不清，增强扫描轻度强化，大小约4MM×4MM，大致同前。胰腺大小、形态正常，密度均匀。左肾可见多个类圆形低密度灶，较大者大小约23MM×17MM，边界清，增强未见强化。双肾上腺未见异常。肝门部、腹腔干分支、腹主动脉旁见多个小淋巴结，较大者短径约7MM，边界清，大致同前。左侧肩胛骨、胸骨体、T2右侧附件、T9-10、T12、L1椎体及部分附件、右侧第1、3、6、9肋、左侧第11后肋见骨质破坏。右侧第5、第6后肋骨皮质受损凹陷，呈术后改变。右中肺癌术后，左上肺叶病灶靶向治疗后：双肺弥漫分布的结节，考虑转移，较前增多、增大。左上肺纵隔旁软组织灶，较前稍增大。右下肺条索、斑片灶较前无明显变化。纵隔、肺门及腹腔、腹膜后多发淋巴结，较前未见明显变化。双侧胸腔少量积液。多发骨转移瘤，较前未见明显变化。脾内病灶基本同前。左肾囊肿。甲状腺双叶多发病变，较前未见明显变化。</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -5031,7 +5031,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>右肺中央型肺癌可能大。右肺门、纵隔及右侧锁骨上多发淋巴结,倾向转移。双肺多发结节,考虑转移。左下肺肺气肿及支气管扩张。右侧胸膜广泛不规则增厚,胸腔积液,考虑转移。右肋第9肋局部高密度灶,转移不除外。所及肝内多发低密度灶,请结合腹部检查。右肺中叶见近椭圆形肿块,约63MM×42MM(IM33),增强呈中等度强化,与右肺下动脉分界不清;右下肺见条片状实变灶;右肺门见肿大淋巴结,较大约23MM×17MM(IM27)。右侧锁骨上、纵隔多发淋巴结,较大约17MM×12MM(IM23)。双肺散在球形微小结节,均小于5MM。右上肺索条及片状影;左下肺肺气肿及支气管扩张改变。右侧胸膜广泛不规则增厚,胸腔积液;左侧未见胸水。右肋第9肋局部高密度灶(IM57);余胸廓诸骨未见骨质破坏。所及肝内多发低密度灶。</t>
+          <t>右肺中央型肺癌可能大。右肺门、纵隔及右侧锁骨上多发淋巴结，倾向转移。双肺多发结节，考虑转移。左下肺肺气肿及支气管扩张。右侧胸膜广泛不规则增厚，胸腔积液，考虑转移。右肋第9肋局部高密度灶，转移不除外。所及肝内多发低密度灶，请结合腹部检查。右肺中叶见近椭圆形肿块，约63MM×42MM(IM33)，增强呈中等度强化，与右肺下动脉分界不清；右下肺见条片状实变灶；右肺门见肿大淋巴结，较大约23MM×17MM(IM27)。右侧锁骨上、纵隔多发淋巴结，较大约17MM×12MM(IM23)。双肺散在球形微小结节，均小于5MM。右上肺索条及片状影；左下肺肺气肿及支气管扩张改变。右侧胸膜广泛不规则增厚，胸腔积液；左侧未见胸水。右肋第9肋局部高密度灶(IM57)；余胸廓诸骨未见骨质破坏。所及肝内多发低密度灶。</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -5053,7 +5053,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>右乳癌化疗后,右肾体积增大,右肾下极实质内见一类圆形稍高密度灶,边界尚清,大小约12MM×16MM,密度欠均匀,其内似见钙化点,增强后可见强化,低于周围肾实质密度。左肾萎缩,其内见多发囊状低密度灶,边界清楚,大者直径约42MM,边缘见钙化,未见强化。所见肝脏形态可,肝S6可见一稍低密度灶,增强后呈轻度不均匀强化,边界不清,直径约9MM。肝门区未见异常。门静脉充盈尚可。所示胰腺未见确切异常。下腔静脉旁见一淋巴结,大小约11MM×12MM,增强后呈较均匀强化。腹主动脉旁未见肿大淋巴结。膀胱充盈良好,境界清楚。子宫大小、形态未见明显异常,子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。双侧髂骨、坐骨、耻骨、右侧股骨头及部分腰骶椎椎体及附件骨质破坏,未见软组织肿块。右乳癌化疗后,右肾下极病灶,考虑良性病变可能性大,血管平滑肌脂肪瘤?建议复查。左肾萎缩;左肾多发囊肿。肝S6病灶,大致同前(2015.01.04),考虑转移瘤可能性大。下腔静脉旁淋巴结增大,可疑转移。双侧髂骨、坐骨、耻骨、右侧股骨头及部分腰骶椎多发骨质破坏,考虑转移。</t>
+          <t>右乳癌化疗后，右肾体积增大，右肾下极实质内见一类圆形稍高密度灶，边界尚清，大小约12MM×16MM，密度欠均匀，其内似见钙化点，增强后可见强化，低于周围肾实质密度。左肾萎缩，其内见多发囊状低密度灶，边界清楚，大者直径约42MM，边缘见钙化，未见强化。所见肝脏形态可，肝S6可见一稍低密度灶，增强后呈轻度不均匀强化，边界不清，直径约9MM。肝门区未见异常。门静脉充盈尚可。所示胰腺未见确切异常。下腔静脉旁见一淋巴结，大小约11MM×12MM，增强后呈较均匀强化。腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。子宫大小、形态未见明显异常，子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。双侧髂骨、坐骨、耻骨、右侧股骨头及部分腰骶椎椎体及附件骨质破坏，未见软组织肿块。右乳癌化疗后，右肾下极病灶，考虑良性病变可能性大，血管平滑肌脂肪瘤?建议复查。左肾萎缩；左肾多发囊肿。肝S6病灶，大致同前(2015.01.04)，考虑转移瘤可能性大。下腔静脉旁淋巴结增大，可疑转移。双侧髂骨、坐骨、耻骨、右侧股骨头及部分腰骶椎多发骨质破坏，考虑转移。</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -5070,7 +5070,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>1.结合临床,右肺癌并阻塞性肺不张、肺炎;右肺结节灶,考虑转移2.左肺类结节灶,建议观察3.肝及左肾低密度结节灶,囊肿可能,建议观察4.左侧肾上腺略饱满,建议观察右肺中叶支气管截断,见一软组织肿块,远端见不张肺组织及索条影,肿块截面约3.7CM×2.3CM,边缘分叶、毛刺,边缘见索条影牵拉邻近胸膜,增强后呈中等不均匀强化。右肺见结节灶,大者长径约1.1CM。左肺(6-31)见一直径不足0.5CM小类结节灶,密度较低。纵隔内隆突下见短径不足1.0CM小淋巴结。肝内见少许低密度结节灶,边缘较清晰,直径不足0.5CM,未见强化。胆、胰、脾、右侧肾上腺及扫描野内右肾未见异常。左肾见直径不足0.5CM小低密度结节灶。左侧肾上腺略饱满。腹腔及腹膜后未见增大淋巴结。</t>
+          <t>1.结合临床，右肺癌并阻塞性肺不张、肺炎；右肺结节灶，考虑转移2.左肺类结节灶，建议观察3.肝及左肾低密度结节灶，囊肿可能，建议观察4.左侧肾上腺略饱满，建议观察右肺中叶支气管截断，见一软组织肿块，远端见不张肺组织及索条影，肿块截面约3.7CM×2.3CM，边缘分叶、毛刺，边缘见索条影牵拉邻近胸膜，增强后呈中等不均匀强化。右肺见结节灶，大者长径约1.1CM。左肺(6-31)见一直径不足0.5CM小类结节灶，密度较低。纵隔内隆突下见短径不足1.0CM小淋巴结。肝内见少许低密度结节灶，边缘较清晰，直径不足0.5CM，未见强化。胆、胰、脾、右侧肾上腺及扫描野内右肾未见异常。左肾见直径不足0.5CM小低密度结节灶。左侧肾上腺略饱满。腹腔及腹膜后未见增大淋巴结。</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5092,7 +5092,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>1、左上肺肺门区高代谢结节,首先考虑中心型肺癌,建议支气管镜。纵隔7、8区淋巴结转移。双肺纹理增多,伴多发小结节、小树丫样斑片影,多沿支气管树分布或位于胸膜下,均未见高代谢,性质待定。2、脑部未见明显异常代谢征象。双肺轻度气肿。右下肺钙化灶。前列腺增生伴钙化。右股骨头、T10、L5骨岛。空腹6小时以上,静脉注射显像剂,平静休息60MMIN后行全身PET及CT断层显像,PET图像经衰减校正及重建后,将PET及CT图像行多平面、多幅显示:大脑形态如常,皮层各叶放射性分布均匀。皮层下各神经核团显影清晰,放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深,白质未见明显低密度影,中线无移位。脑室无扩大,基底节区显示对称。小脑显影如常,两侧小脑对称。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。甲状腺两叶不大,形态可,腺实质内未见异常放射性增高灶。双颈部及锁骨上区未见明显异常淋巴结浓聚。左上肺肺门区见一软组织结节,约2.7CM×2.3CM,边缘毛糙,伴异常放射性浓聚,最大SUV32.98。双肺纹理增多,伴多发小结节、小树丫样斑片影,多沿支气管树分布或位于胸膜下,均未见放射性浓聚。双肺轻度气肿。右下肺见钙化灶。双侧胸膜无增厚,胸水征阴性。纵隔7、8区见肿大淋巴结,较大者约2.6CM×1.7CM,伴异常浓聚,最大SUV分别为15.23和9.18。余纵隔及右肺门未见肿大或异常浓聚淋巴结。心肌显影。胃充盈好,胃壁显影如常。肝脏形态可,轮廓光整,肝叶比例正常,肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常,密度均匀,胆囊壁无增厚。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹盆部可见条索状肠影。腹腔内及腹膜后未见明显肿大或异常浓聚淋巴结。腹水征阴性。膀胱放射性浓聚如常,膀胱壁无增厚。前列腺增大伴钙化,放射性分布大致正常。两侧腹股沟无异常淋巴结显示。视野内轴心骨未见异常放射性浓聚。右股骨头、T10、L5骨岛。视野内皮肤及软组织内未见异常放射性摄取。</t>
+          <t>1、左上肺肺门区高代谢结节，首先考虑中心型肺癌，建议支气管镜。纵隔7、8区淋巴结转移。双肺纹理增多，伴多发小结节、小树丫样斑片影，多沿支气管树分布或位于胸膜下，均未见高代谢，性质待定。2、脑部未见明显异常代谢征象。双肺轻度气肿。右下肺钙化灶。前列腺增生伴钙化。右股骨头、T10、L5骨岛。空腹6小时以上，静脉注射显像剂，平静休息60MMIN后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：大脑形态如常，皮层各叶放射性分布均匀。皮层下各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，两侧小脑对称。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。双颈部及锁骨上区未见明显异常淋巴结浓聚。左上肺肺门区见一软组织结节，约2.7CM×2.3CM，边缘毛糙，伴异常放射性浓聚，最大SUV32.98。双肺纹理增多，伴多发小结节、小树丫样斑片影，多沿支气管树分布或位于胸膜下，均未见放射性浓聚。双肺轻度气肿。右下肺见钙化灶。双侧胸膜无增厚，胸水征阴性。纵隔7、8区见肿大淋巴结，较大者约2.6CM×1.7CM，伴异常浓聚，最大SUV分别为15.23和9.18。余纵隔及右肺门未见肿大或异常浓聚淋巴结。心肌显影。胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹盆部可见条索状肠影。腹腔内及腹膜后未见明显肿大或异常浓聚淋巴结。腹水征阴性。膀胱放射性浓聚如常，膀胱壁无增厚。前列腺增大伴钙化，放射性分布大致正常。两侧腹股沟无异常淋巴结显示。视野内轴心骨未见异常放射性浓聚。右股骨头、T10、L5骨岛。视野内皮肤及软组织内未见异常放射性摄取。</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5114,7 +5114,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>1.结合临床,右肺下叶癌并右肺门及纵隔淋巴结转移伴阻塞性炎症,均较前(2015-6-16)减小2.左肾血管平滑肌脂肪瘤,左肾囊肿;右肾占位,考虑血管平滑肌脂肪瘤可能性大,变化不著3.双肺慢性炎症右肺下叶可见一小片状软组织肿块影,最大截面约0.8CM×1.3CM,边缘分叶毛糙,增强扫描中等强化。右肺门、隆突下、血管前间隙可见多发融合成团的肿大淋巴结,大者短径约2.0CM,其中肺门区淋巴结包绕中叶外侧段支气管生长致其狭窄,远端部分可见斑片及索条状密度增高影,边缘模糊。余双肺野间质密度增高,右侧为著。肝实质密度均质,胆囊胰腺脾脏未见异常。左肾实质内可见一脂肪密度影,直径约0.9CM,边界清,无强化。另左肾可见一囊性密度灶,直径约0.6CM。右肾实质内混杂密度灶,最大截面约1.5CM×1.9CM,可见少部分脂肪密度,增强扫描呈快进快出表现。腹腔腹膜后未见肿大淋巴结。</t>
+          <t>1.结合临床，右肺下叶癌并右肺门及纵隔淋巴结转移伴阻塞性炎症，均较前(2015-6-16)减小2.左肾血管平滑肌脂肪瘤，左肾囊肿；右肾占位，考虑血管平滑肌脂肪瘤可能性大，变化不著3.双肺慢性炎症右肺下叶可见一小片状软组织肿块影，最大截面约0.8CM×1.3CM，边缘分叶毛糙，增强扫描中等强化。右肺门、隆突下、血管前间隙可见多发融合成团的肿大淋巴结，大者短径约2.0CM，其中肺门区淋巴结包绕中叶外侧段支气管生长致其狭窄，远端部分可见斑片及索条状密度增高影，边缘模糊。余双肺野间质密度增高，右侧为著。肝实质密度均质，胆囊胰腺脾脏未见异常。左肾实质内可见一脂肪密度影，直径约0.9CM，边界清，无强化。另左肾可见一囊性密度灶，直径约0.6CM。右肾实质内混杂密度灶，最大截面约1.5CM×1.9CM，可见少部分脂肪密度，增强扫描呈快进快出表现。腹腔腹膜后未见肿大淋巴结。</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -5136,7 +5136,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>左肺门增大,左肺门可见团块状高密度影,与周围组织界限不清,左肺上叶尖后段可见团块状高密度影,边界尚清,可见分叶,其内可见血管集束征,大小约为2.63CM×2.20CM。右肺中叶(36)、下叶外基底段胸膜下可见结节影(S44)。两肺纹理清晰。所示气管支气管影正常。纵隔内可见多发肿大的淋巴结,较大的短颈约为1.56CM。两胸腔无积液征象。心脏大血管未见异常。右侧肩胛骨、胸骨、部分胸椎、肋骨骨质密度不均,可见斑片状低密度影。左肺上叶占位,双侧肺门及纵隔多发软组织肿块,首先考虑周围型肺癌伴淋巴结转移可能,右肺内结节,转移?请随诊或详查;右侧肩胛骨、胸骨、部分胸椎、肋骨多发骨质破坏,考虑转移可能,请结合临床。</t>
+          <t>左肺门增大，左肺门可见团块状高密度影，与周围组织界限不清，左肺上叶尖后段可见团块状高密度影，边界尚清，可见分叶，其内可见血管集束征，大小约为2.63CM×2.20CM。右肺中叶(36)、下叶外基底段胸膜下可见结节影(S44)。两肺纹理清晰。所示气管支气管影正常。纵隔内可见多发肿大的淋巴结，较大的短颈约为1.56CM。两胸腔无积液征象。心脏大血管未见异常。右侧肩胛骨、胸骨、部分胸椎、肋骨骨质密度不均，可见斑片状低密度影。左肺上叶占位，双侧肺门及纵隔多发软组织肿块，首先考虑周围型肺癌伴淋巴结转移可能，右肺内结节，转移?请随诊或详查；右侧肩胛骨、胸骨、部分胸椎、肋骨多发骨质破坏，考虑转移可能，请结合临床。</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -5153,7 +5153,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>1.结合临床,右肺癌治疗后,右肺门纵隔淋巴结转移,较前2014-8-21变化不著;双肺转移,较前明显2.结合临床,左乳癌治疗后较前变化不著右肺上叶示一不规则软组织密度结节灶,截面约1.3CM×1.5CM,边缘分叶、毛刺,牵拉邻近胸膜凹陷,增强后呈较显著强化。右肺上叶前段示一混合磨玻璃密度灶,截面约3.6CM×1.7CM,边缘毛刺牵拉邻近胸膜凹陷,内见支气管充气征。右肺中叶近斜裂胸膜处示一软组织肿块,截面约1.5CM×2.0CM,边缘毛刺,增强后呈较显著强化。另右肺跨斜裂胸膜处,上下叶内见一混合磨玻璃密度灶,截面约4.0CM×1.9CM,形态不规则,牵拉邻近胸膜凹陷,内见支气管充气征。余双肺见多发结节灶,大者直径约0.5CM,部分内见小空泡。左乳见一不规则软组织结节灶,截面约0.7CM×1.0CM,边缘分叶可见少许毛刺,增强后呈轻度强化。纵隔内右上气管旁、气管前腔静脉后、右肺门见多发增大淋巴结,大者短径约1.0CM,部分内可见钙化。</t>
+          <t>1.结合临床，右肺癌治疗后，右肺门纵隔淋巴结转移，较前2014-8-21变化不著；双肺转移，较前明显2.结合临床，左乳癌治疗后较前变化不著右肺上叶示一不规则软组织密度结节灶，截面约1.3CM×1.5CM，边缘分叶、毛刺，牵拉邻近胸膜凹陷，增强后呈较显著强化。右肺上叶前段示一混合磨玻璃密度灶，截面约3.6CM×1.7CM，边缘毛刺牵拉邻近胸膜凹陷，内见支气管充气征。右肺中叶近斜裂胸膜处示一软组织肿块，截面约1.5CM×2.0CM，边缘毛刺，增强后呈较显著强化。另右肺跨斜裂胸膜处，上下叶内见一混合磨玻璃密度灶，截面约4.0CM×1.9CM，形态不规则，牵拉邻近胸膜凹陷，内见支气管充气征。余双肺见多发结节灶，大者直径约0.5CM，部分内见小空泡。左乳见一不规则软组织结节灶，截面约0.7CM×1.0CM，边缘分叶可见少许毛刺，增强后呈轻度强化。纵隔内右上气管旁、气管前腔静脉后、右肺门见多发增大淋巴结，大者短径约1.0CM，部分内可见钙化。</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -5170,7 +5170,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>考虑为胰头MT伴肝内外胆管扩张;灶周小淋巴结,请结合临床;肝脏右叶囊肿;胆囊增大;子宫肌瘤;右乳MT术后改变;右肺上叶后段慢性炎性小结节可能性大,建议随访;甲状腺密度欠均匀,请结合超声检查。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼内肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。双侧上颌窦内见少许软组织密度影,考虑为慢性炎症;余副鼻窦未见明显异常。颈部PET/CT图像示双侧颌下、颈血管旁、颈后三角及锁骨区见多枚糖代谢轻度增高的淋巴结,糖代谢最高且较大者及位于右侧颈血管旁,大小约为13.2MM×8.4MM,最大SUV值约为3.7,考虑为慢性炎症;口咽、喉咽部无占位;甲状腺无肿大,其内密度不均匀,未见明显糖代谢异常增高。胸部PET/CT图像示右乳MT术后缺如,术区未见明显糖代谢异常增高灶或占位;双肺纹理增多,右肺上叶后段见一直径约为5.0MM、不伴糖代谢增高的小结节,余双肺野未见明显糖代谢异常增高或占位;各级支气管腔通畅;纵隔、双肺门、腋窝无明显糖代谢异常增高灶或肿大淋巴结;双侧胸膜无增厚;双侧胸腔无积液;心脏无明显增大;左侧乳腺无殊。腹部PET/CT图像示胰头部糖代谢异常增高的软组织肿块影,大小约为36.0MM×28.8MM,最大SUV值为6.4,其上段胆总管及肝内胆管明显扩张;灶周见小淋巴结,直径约为6.0MM。肝脏表面光整,各叶比例匀称,肝脏右叶近膈顶见一大小约为16.5MM×10.7MM、不伴糖代谢增高的囊性灶,余肝脏实质未见明显糖代谢异常增高或占位;胃壁均匀性轻度糖代谢生理性增强;肠道呈线型生理性糖代谢增强;脾脏不大,密度均,未见明显占位;胆囊增大,壁张力增高,其内密度稍增高;双肾、肾上腺无殊;腹膜后无明显糖代谢异常增高灶或肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈差;子宫前壁见一直径约为15.8MM的结节;双附件区未见明显占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET图像示全身骨骼未见明显糖代谢异常增高。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质稍增生,考虑为退行性变。</t>
+          <t>考虑为胰头MT伴肝内外胆管扩张；灶周小淋巴结，请结合临床；肝脏右叶囊肿；胆囊增大；子宫肌瘤；右乳MT术后改变；右肺上叶后段慢性炎性小结节可能性大，建议随访；甲状腺密度欠均匀，请结合超声检查。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。双侧上颌窦内见少许软组织密度影，考虑为慢性炎症；余副鼻窦未见明显异常。颈部PET/CT图像示双侧颌下、颈血管旁、颈后三角及锁骨区见多枚糖代谢轻度增高的淋巴结，糖代谢最高且较大者及位于右侧颈血管旁，大小约为13.2MM×8.4MM，最大SUV值约为3.7，考虑为慢性炎症；口咽、喉咽部无占位；甲状腺无肿大，其内密度不均匀，未见明显糖代谢异常增高。胸部PET/CT图像示右乳MT术后缺如，术区未见明显糖代谢异常增高灶或占位；双肺纹理增多，右肺上叶后段见一直径约为5.0MM、不伴糖代谢增高的小结节，余双肺野未见明显糖代谢异常增高或占位；各级支气管腔通畅；纵隔、双肺门、腋窝无明显糖代谢异常增高灶或肿大淋巴结；双侧胸膜无增厚；双侧胸腔无积液；心脏无明显增大；左侧乳腺无殊。腹部PET/CT图像示胰头部糖代谢异常增高的软组织肿块影，大小约为36.0MM×28.8MM，最大SUV值为6.4，其上段胆总管及肝内胆管明显扩张；灶周见小淋巴结，直径约为6.0MM。肝脏表面光整，各叶比例匀称，肝脏右叶近膈顶见一大小约为16.5MM×10.7MM、不伴糖代谢增高的囊性灶，余肝脏实质未见明显糖代谢异常增高或占位；胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；脾脏不大，密度均，未见明显占位；胆囊增大，壁张力增高，其内密度稍增高；双肾、肾上腺无殊；腹膜后无明显糖代谢异常增高灶或肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈差；子宫前壁见一直径约为15.8MM的结节；双附件区未见明显占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像示全身骨骼未见明显糖代谢异常增高。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质稍增生，考虑为退行性变。</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -5188,7 +5188,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>结合临床,右乳腺癌并右腋窝淋巴结肿大,考虑转移;左腋窝淋巴结肿大右乳头上方腺体内见一软组织肿块影,边缘模糊,肿块最大截面约2.9CM×1.4CM,增强后示显著强化。左侧乳腺未见爱你异常。双侧腋窝内见多发肿大淋巴结,大者位于右侧,短径约1.5CM。双侧肺野清晰,气管及各级支气管开口通畅,未见异常。</t>
+          <t>结合临床，右乳腺癌并右腋窝淋巴结肿大，考虑转移；左腋窝淋巴结肿大右乳头上方腺体内见一软组织肿块影，边缘模糊，肿块最大截面约2.9CM×1.4CM，增强后示显著强化。左侧乳腺未见爱你异常。双侧腋窝内见多发肿大淋巴结，大者位于右侧，短径约1.5CM。双侧肺野清晰，气管及各级支气管开口通畅，未见异常。</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -5210,7 +5210,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>左肺上叶尖后段见不规则软组织结节,范围约13MM×10MM(IM12),边缘模糊,与胸膜关系密切。左肺上叶支气管血管束旁另见实性结节,范围约10MM×7MM(IM16)。左肺上叶小叶间隔增厚,左肺下叶见片状实变。右肺上叶尖段胸膜下见小斑片灶(IM7),右肺下叶胸膜下见多发索条。纵隔2-6组及左肺门见多发肿大淋巴结,大者约30MM×18MM(IM18),双肺门、锁骨上区及双腋下未见肿大淋巴结。左侧胸膜增厚,部分呈结节样增厚,左侧胸腔见液体密度。左侧胸腔引流管置入后。右侧胸膜光滑,未见胸水征象。扫及胸廓诸骨未见明确破坏征象。扫及腹主动脉旁见增大淋巴结。左肺上叶尖后段结节,符合恶性征象,建议对比老片。左肺上叶小结节,性质待定,追查。纵隔及左肺门肿大淋巴结转移。左侧胸膜增厚伴左侧大量胸腔积液,胸膜转移可能大;继发左肺下叶膨胀不全。右肺上叶斑片灶及下叶索条,倾向陈旧病变。纵隔多发肿大淋巴结,考虑转移。</t>
+          <t>左肺上叶尖后段见不规则软组织结节，范围约13MM×10MM(IM12)，边缘模糊，与胸膜关系密切。左肺上叶支气管血管束旁另见实性结节，范围约10MM×7MM(IM16)。左肺上叶小叶间隔增厚，左肺下叶见片状实变。右肺上叶尖段胸膜下见小斑片灶(IM7)，右肺下叶胸膜下见多发索条。纵隔2-6组及左肺门见多发肿大淋巴结，大者约30MM×18MM(IM18)，双肺门、锁骨上区及双腋下未见肿大淋巴结。左侧胸膜增厚，部分呈结节样增厚，左侧胸腔见液体密度。左侧胸腔引流管置入后。右侧胸膜光滑，未见胸水征象。扫及胸廓诸骨未见明确破坏征象。扫及腹主动脉旁见增大淋巴结。左肺上叶尖后段结节，符合恶性征象，建议对比老片。左肺上叶小结节，性质待定，追查。纵隔及左肺门肿大淋巴结转移。左侧胸膜增厚伴左侧大量胸腔积液，胸膜转移可能大；继发左肺下叶膨胀不全。右肺上叶斑片灶及下叶索条，倾向陈旧病变。纵隔多发肿大淋巴结，考虑转移。</t>
         </is>
       </c>
       <c r="B240" t="inlineStr"/>
@@ -5223,7 +5223,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>考虑右上肺周围型肺癌伴双肺门、纵隔、左锁骨上区淋巴结转移。右颈内静脉、右头臂干、上腔静脉癌栓形成。双肺所发结节及斑片影,考虑转移。右上肺胸膜结节,考虑转移。左锁骨上区小淋巴结,性质待定。右侧少量胸腔积液。心包积液。双肾上腺结节状增粗,可疑转移瘤。T1椎体病灶,可疑转移瘤。右肺上叶可见一不规则肿物,最大层面大小约58MM×53MM,边缘毛糙,可见分叶及短毛刺,密度欠均匀;病灶包绕右肺上叶支气管及其分支,右肺上叶尖段支气管闭塞于病灶内部闭塞、截断,病灶包绕右肺动脉主干及右肺上叶动脉,上腔静脉管腔内见大片充盈缺损,右侧颈内静脉(舌骨水平至汇入头臂静脉段)、右头臂静脉完全闭塞。病灶与纵隔与右肺门肿大淋巴结融合,分界不清;病灶周围右肺上叶内见多小斑片影,边界欠清。双肺见多发散在斑片影及结节影,边界欠清,较大者约20MM×18MM。纵隔(血管前、双上下气管旁、主动脉旁、主肺动脉窗、隆突下)、双肺门可见多个肿大淋巴结,大部分融合,较大者约35MM×35MM,边界不清,增强扫描不均匀明显强化。右锁上见多个肿大淋巴结,大部分融合,大小约44MM×37MM,边界不清,增强扫描不均匀明显强化,部分呈环形强化。左锁骨上区见一小淋巴结,直径约5MM,边界清,增强扫描较明显强化。心包见积液。右侧胸腔见少量积液。左侧胸腔未见明显积液。右上肺胸膜局部见扁丘状隆起,较大者约12MM×10MM,边界清。左侧胸膜未见明显增厚。腋窝未见明确肿大淋巴结。双颈结构清晰,各血管充盈良好,甲状腺双叶及峡部形态正常,密度均匀,未见占位性病变;喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称;双侧颌下腺、腮腺大小形态正常,密度均匀;双颈未见肿大淋巴结。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度均匀;肝内胆管正常,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影;肝门区未见异常;门静脉未见异常;脾大小正常,密度均匀;胰腺大小、形态正常,密度均匀;双侧肾上腺结合部见结节状增粗(SE11,IM287、295),大小分别约7MM(左侧)、5MM(右侧),增强扫描不均匀强化。双肾未见异常;膈脚后、腹主动脉旁未见肿大淋巴结。T1椎体可见小低密影,边缘模糊,余扫描层面所见骨质未见明确破坏征象。</t>
+          <t>考虑右上肺周围型肺癌伴双肺门、纵隔、左锁骨上区淋巴结转移。右颈内静脉、右头臂干、上腔静脉癌栓形成。双肺所发结节及斑片影，考虑转移。右上肺胸膜结节，考虑转移。左锁骨上区小淋巴结，性质待定。右侧少量胸腔积液。心包积液。双肾上腺结节状增粗，可疑转移瘤。T1椎体病灶，可疑转移瘤。右肺上叶可见一不规则肿物，最大层面大小约58MM×53MM，边缘毛糙，可见分叶及短毛刺，密度欠均匀；病灶包绕右肺上叶支气管及其分支，右肺上叶尖段支气管闭塞于病灶内部闭塞、截断，病灶包绕右肺动脉主干及右肺上叶动脉，上腔静脉管腔内见大片充盈缺损，右侧颈内静脉(舌骨水平至汇入头臂静脉段)、右头臂静脉完全闭塞。病灶与纵隔与右肺门肿大淋巴结融合，分界不清；病灶周围右肺上叶内见多小斑片影，边界欠清。双肺见多发散在斑片影及结节影，边界欠清，较大者约20MM×18MM。纵隔(血管前、双上下气管旁、主动脉旁、主肺动脉窗、隆突下)、双肺门可见多个肿大淋巴结，大部分融合，较大者约35MM×35MM，边界不清，增强扫描不均匀明显强化。右锁上见多个肿大淋巴结，大部分融合，大小约44MM×37MM，边界不清，增强扫描不均匀明显强化，部分呈环形强化。左锁骨上区见一小淋巴结，直径约5MM，边界清，增强扫描较明显强化。心包见积液。右侧胸腔见少量积液。左侧胸腔未见明显积液。右上肺胸膜局部见扁丘状隆起，较大者约12MM×10MM，边界清。左侧胸膜未见明显增厚。腋窝未见明确肿大淋巴结。双颈结构清晰，各血管充盈良好，甲状腺双叶及峡部形态正常，密度均匀，未见占位性病变；喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称；双侧颌下腺、腮腺大小形态正常，密度均匀；双颈未见肿大淋巴结。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀；肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影；肝门区未见异常；门静脉未见异常；脾大小正常，密度均匀；胰腺大小、形态正常，密度均匀；双侧肾上腺结合部见结节状增粗(SE11，IM287、295)，大小分别约7MM(左侧)、5MM(右侧)，增强扫描不均匀强化。双肾未见异常；膈脚后、腹主动脉旁未见肿大淋巴结。T1椎体可见小低密影，边缘模糊，余扫描层面所见骨质未见明确破坏征象。</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5245,7 +5245,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>左乳上象限团块及其旁小结节,考虑乳腺癌可能性大。左侧腋窝肿大淋巴结,考虑转移。左乳外上象限小片状强化灶,考虑增殖灶可能性大。左肺下叶胸膜下小结节,考虑增殖灶可能性大,建议复查。右肺中叶纤维增殖灶。脾内多发低密度灶,性质待定,血管瘤?转移瘤?建议MR检查。副脾。肝脏未见明确病变。颈部未见明确病变。左乳上象限可见一异常密度团块,边界欠清,范围约41MM×31MM×42MM,密度欠均匀,增强后可见边缘明显强化,病灶后缘与胸壁软组织分界欠清,病灶上极外侧可见一小结节,直径约3门脉,亦呈边缘强化。左乳外上象限腺体内见一小片状强化影,边界尚清,大小约6MM×7MM。左侧腋窝可见肿大淋巴结,边界欠清,大者大小约12MM×18MM,增强后呈不均匀强化。右侧乳腺形态、密度尚可,未见异常强化灶。右侧腋窝未见肿大淋巴结。左肺下叶外基底段胸膜下可见小结节灶,直径约2MM,边界清楚。右肺中叶内侧段可见散在索条,边界尚清。余双肺纹理尚清,未见明确实质性病变。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏形态正常,各叶比例尚可,其外形轮廓光整,密度均匀,未见异常强化表现。肝内胆管正常,胆囊大小正常,胆总管未见扩张,其内均未见结石影。门静脉充盈尚可。脾大小正常,脾内可见散在低密度灶,边界尚清,大者直径约10MM,增强后动脉期强化不明显,门脉期及平衡期似见轻度强化,范围略显缩小。脾周见小结节,大者直径约8MM,强化与脾一致。胰腺未见异常。所示双肾未见异常。双肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。颈部结构清晰,各血管充盈良好,甲状腺双叶及峡部形态正常,密度均匀,未见占位性病变;喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。双侧颌下腺、腮腺大小形态正常,密度均匀。颈部未见肿大淋巴结。所见骨质结构未见破坏征象。</t>
+          <t>左乳上象限团块及其旁小结节，考虑乳腺癌可能性大。左侧腋窝肿大淋巴结，考虑转移。左乳外上象限小片状强化灶，考虑增殖灶可能性大。左肺下叶胸膜下小结节，考虑增殖灶可能性大，建议复查。右肺中叶纤维增殖灶。脾内多发低密度灶，性质待定，血管瘤?转移瘤?建议MR检查。副脾。肝脏未见明确病变。颈部未见明确病变。左乳上象限可见一异常密度团块，边界欠清，范围约41MM×31MM×42MM，密度欠均匀，增强后可见边缘明显强化，病灶后缘与胸壁软组织分界欠清，病灶上极外侧可见一小结节，直径约3门脉，亦呈边缘强化。左乳外上象限腺体内见一小片状强化影，边界尚清，大小约6MM×7MM。左侧腋窝可见肿大淋巴结，边界欠清，大者大小约12MM×18MM，增强后呈不均匀强化。右侧乳腺形态、密度尚可，未见异常强化灶。右侧腋窝未见肿大淋巴结。左肺下叶外基底段胸膜下可见小结节灶，直径约2MM，边界清楚。右肺中叶内侧段可见散在索条，边界尚清。余双肺纹理尚清，未见明确实质性病变。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏形态正常，各叶比例尚可，其外形轮廓光整，密度均匀，未见异常强化表现。肝内胆管正常，胆囊大小正常，胆总管未见扩张，其内均未见结石影。门静脉充盈尚可。脾大小正常，脾内可见散在低密度灶，边界尚清，大者直径约10MM，增强后动脉期强化不明显，门脉期及平衡期似见轻度强化，范围略显缩小。脾周见小结节，大者直径约8MM，强化与脾一致。胰腺未见异常。所示双肾未见异常。双肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。颈部结构清晰，各血管充盈良好，甲状腺双叶及峡部形态正常，密度均匀，未见占位性病变；喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。双侧颌下腺、腮腺大小形态正常，密度均匀。颈部未见肿大淋巴结。所见骨质结构未见破坏征象。</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5262,7 +5262,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>1.右肺下叶癌并右侧胸膜转移、纵隔、双锁上、右侧心膈角多发淋巴结转移、双肺多发转移,较前2014-9-1好转;2.右侧胸腔积液较前减少;3.T11骨转移,溶骨性改变较前减少,部分密度增高,考虑为骨质修复,考虑好转右肺下叶后基底段可见一软组织肿块,边缘分叶毛刺,与邻近胸膜关系密切,最大截面约为2.5CM×2.0CM(纵隔窗),增强后中度强化,双肺野内可见多发大小不一的结节影,大者长径约为1.4CM,纵隔内右上气管旁、腔静脉后、主肺动脉窗区、隆突下、双锁上、右侧心膈角区可见多发肿大淋巴结,大者短径约为0.9CM;右侧胸膜条形增厚伴强化,右侧胸腔可见液性密度影。T11椎体可见溶骨性骨质破坏影。</t>
+          <t>1.右肺下叶癌并右侧胸膜转移、纵隔、双锁上、右侧心膈角多发淋巴结转移、双肺多发转移，较前2014-9-1好转；2.右侧胸腔积液较前减少；3.T11骨转移，溶骨性改变较前减少，部分密度增高，考虑为骨质修复，考虑好转右肺下叶后基底段可见一软组织肿块，边缘分叶毛刺，与邻近胸膜关系密切，最大截面约为2.5CM×2.0CM(纵隔窗)，增强后中度强化，双肺野内可见多发大小不一的结节影，大者长径约为1.4CM，纵隔内右上气管旁、腔静脉后、主肺动脉窗区、隆突下、双锁上、右侧心膈角区可见多发肿大淋巴结，大者短径约为0.9CM；右侧胸膜条形增厚伴强化，右侧胸腔可见液性密度影。T11椎体可见溶骨性骨质破坏影。</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -5284,7 +5284,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>左肺下叶支气管狭窄,局部见软组织密度结节灶,增强后病变呈不均匀强化,远端肺野内可见斑片状密度增高影。左肺上叶透光区略示增高。左肺门10区及11区、纵隔内8R、8L、7区见增大淋巴结,并相互融合,大者短径约1.8CM;4R、4L区见稍大淋巴结;增强后不均匀强化。肝左叶见一大小约6.2CM×4.8CM囊性密度灶,厚壁,见少许壁结节向腔内突出,增强后壁结节可见强化。病变周期肝实质动脉期见片状一过性显著强化区,考虑为灌注异常。门静脉左支受压变形。胆囊未见异常。胰腺颈部略示一长径约0.6CM低密度灶,边缘略示模糊。脾、双肾及肾上腺未见异常。腹腔及腹膜后未见显著增大淋巴结。1.左肺下叶中心型肺癌伴阻塞性炎症,较前2015-09-08略好转;左肺门、纵隔淋巴结转移,部分变化不著,部分略增大2.肝左叶囊实性占位,伴肝内胆管轻度扩张,考虑转移可能性大,较前缩小3.胰腺略示低密度灶,考虑转移,较前变化不著</t>
+          <t>左肺下叶支气管狭窄，局部见软组织密度结节灶，增强后病变呈不均匀强化，远端肺野内可见斑片状密度增高影。左肺上叶透光区略示增高。左肺门10区及11区、纵隔内8R、8L、7区见增大淋巴结，并相互融合，大者短径约1.8CM；4R、4L区见稍大淋巴结；增强后不均匀强化。肝左叶见一大小约6.2CM×4.8CM囊性密度灶，厚壁，见少许壁结节向腔内突出，增强后壁结节可见强化。病变周期肝实质动脉期见片状一过性显著强化区，考虑为灌注异常。门静脉左支受压变形。胆囊未见异常。胰腺颈部略示一长径约0.6CM低密度灶，边缘略示模糊。脾、双肾及肾上腺未见异常。腹腔及腹膜后未见显著增大淋巴结。1.左肺下叶中心型肺癌伴阻塞性炎症，较前2015-09-08略好转；左肺门、纵隔淋巴结转移，部分变化不著，部分略增大2.肝左叶囊实性占位，伴肝内胆管轻度扩张，考虑转移可能性大，较前缩小3.胰腺略示低密度灶，考虑转移，较前变化不著</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -5301,7 +5301,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>右侧乳癌术后胸壁、胸膜、淋巴结转移化疗后,与2013-6-24片比较:右侧乳腺缺失,右侧胸壁皮肤局部增厚,部分区域呈结节样,最厚处约4MM,较前片增厚。后方脂肪间隙消失。左侧乳腺未见明确病变。双侧腋窝未见肿大淋巴结。右侧胸膜呈不均匀增厚,最厚处约10MM,密度不均匀,增强扫描呈较明显强化,较前片增厚。右侧胸膜腔内见少量积液。右肺体积缩小,密度增高,肺纹理聚拢。右肺上叶前段、右肺中叶内段、右肺下叶后基底段见片状高密度影,增强扫描强化明显,内见支气管气象,范围较前稍增大。气管及支气管分枝通畅。左肺上叶下舌段见片状毛玻璃样病变,密度较均匀,边界模糊。右上、下气管旁、隆突下、双肺门、食管旁见数枚肿大淋巴结,最大者约57MM×25MM,相互融合,增强不均匀强化,部分淋巴结与气管后壁、食管分界不清,较前稍增大。左侧叶间胸膜见局灶性稍增厚,较前未见明显变化。肝脏形态未见异常,其外形轮廓光整,密度普遍减低,肝内未见结节、肿块影,同前相似。肝内胆管未见扩张,其内未见结石影。胆囊其内未见结石影。胆总管未见扩张,其内未见结石影。肝门区未见明确病变。门静脉未见异常。脾不大,密度均匀。胰腺大小、形态未见异常,密度均匀。双肾未见异常。双肾上腺未见肿物。右肾上极水平下腔静脉后方见一肿大淋巴结,大小约23MM×15MM,增强扫描强化欠均匀,较前未见明显变化。扫描所见骨质未见骨质破坏征象。甲状腺右侧叶体积增大,增强扫描强化欠均匀,未见明显变化。右侧乳癌术后右胸壁、胸膜、淋巴结转移化疗后。右胸壁皮肤局限性增厚,符合肿瘤复发。纵隔、双肺门淋巴结转移,较前增大。右侧胸膜增厚、多发结节并胸腔积液,右胸膜结节较前增大。左侧叶间胸膜局限性稍增厚,较前未见明显变化。右肺肺不张及炎症,范围较前稍增大。左肺上叶下舌段片状病变,考虑炎症可能性大。脂肪肝;下腔静脉后方淋巴结肿大,考虑转移,未见明显变化。甲状腺右侧叶改变,考虑结节性甲状腺肿可能性大。</t>
+          <t>右侧乳癌术后胸壁、胸膜、淋巴结转移化疗后，与2013-6-24片比较：右侧乳腺缺失，右侧胸壁皮肤局部增厚，部分区域呈结节样，最厚处约4MM，较前片增厚。后方脂肪间隙消失。左侧乳腺未见明确病变。双侧腋窝未见肿大淋巴结。右侧胸膜呈不均匀增厚，最厚处约10MM，密度不均匀，增强扫描呈较明显强化，较前片增厚。右侧胸膜腔内见少量积液。右肺体积缩小，密度增高，肺纹理聚拢。右肺上叶前段、右肺中叶内段、右肺下叶后基底段见片状高密度影，增强扫描强化明显，内见支气管气象，范围较前稍增大。气管及支气管分枝通畅。左肺上叶下舌段见片状毛玻璃样病变，密度较均匀，边界模糊。右上、下气管旁、隆突下、双肺门、食管旁见数枚肿大淋巴结，最大者约57MM×25MM，相互融合，增强不均匀强化，部分淋巴结与气管后壁、食管分界不清，较前稍增大。左侧叶间胸膜见局灶性稍增厚，较前未见明显变化。肝脏形态未见异常，其外形轮廓光整，密度普遍减低，肝内未见结节、肿块影，同前相似。肝内胆管未见扩张，其内未见结石影。胆囊其内未见结石影。胆总管未见扩张，其内未见结石影。肝门区未见明确病变。门静脉未见异常。脾不大，密度均匀。胰腺大小、形态未见异常，密度均匀。双肾未见异常。双肾上腺未见肿物。右肾上极水平下腔静脉后方见一肿大淋巴结，大小约23MM×15MM，增强扫描强化欠均匀，较前未见明显变化。扫描所见骨质未见骨质破坏征象。甲状腺右侧叶体积增大，增强扫描强化欠均匀，未见明显变化。右侧乳癌术后右胸壁、胸膜、淋巴结转移化疗后。右胸壁皮肤局限性增厚，符合肿瘤复发。纵隔、双肺门淋巴结转移，较前增大。右侧胸膜增厚、多发结节并胸腔积液，右胸膜结节较前增大。左侧叶间胸膜局限性稍增厚，较前未见明显变化。右肺肺不张及炎症，范围较前稍增大。左肺上叶下舌段片状病变，考虑炎症可能性大。脂肪肝；下腔静脉后方淋巴结肿大，考虑转移，未见明显变化。甲状腺右侧叶改变，考虑结节性甲状腺肿可能性大。</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -5318,7 +5318,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET/CT图像示左侧颞叶见伴糖代谢减低的大片状稍低密度影,边界不清晰,邻近脑池受压变窄,中线结构未见明显移位;余脑实质未见明显糖代谢异常或占位。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼外肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。副鼻窦未见明显异常。颈部PET/CT图像示右侧锁骨区见伴糖代谢增高的淋巴结,糖代谢最高且较大者大小约为11.2MM×9.0MM,最大SUV值为3.0;甲状腺双叶无肿大,密度欠均匀,右叶伴糖代谢增高,最大SUV值为3.2;余颈部及左侧锁骨区未见明显糖代谢异常增高灶或肿大淋巴结;口咽、喉咽无殊。胸部PET/CT图像示左肺上叶尖后段见伴糖代谢异常增高的环形结节影,大小约为8.7MM×6.9MM,最大SUV值为9.2;右肺上叶尖段胸膜下见伴糖代谢轻度增高的片状实变影,范围约为37.2MM×9.47MM,最大SUV值为2.1,与邻近胸膜分界不清;右肺上、下叶及左肺上、下叶见多发不伴糖代谢异常增高的小结节影,直径均小于5.0MM;两肺野散在少许斑片条索影及小囊状透亮影;胸廓入口处右侧气管食管沟、腔静脉气管间隙、主肺动脉窗、气管隆突下、右肺门见多发淋巴结,部分伴糖代谢增高,糖代谢最高且较大者位于右肺门,大小约为11.8MM×8.8MM,最大SUV值为4.5;左肺门、双侧腋窝未见明显糖代谢异常增高灶或肿大淋巴结;双侧胸腔无积液;心脏无明显增大。腹部PET图像示胃壁、肠道呈生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫示肝脏表面光整,各叶比例匀称,内见多发囊性低密度影,较大者位于左叶,大小约为8.3MM×7.4MM;肝内外胆管无扩张;脾脏不大,密度均,未见明显占位;左肾上极见直径约为6.7MM的囊性灶;胆囊、胰、右肾、双侧肾上腺未见明显占位;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET/CT图像示肛管糖代谢增高,最大SUV值为5.2,考虑为生理性摄取或炎性病变可能;膀胱充盈差,内见显像剂生理性积聚;余肠道呈生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强;膀胱充盈,壁光滑无增厚;双侧精囊腺形态可;双侧膀胱精囊三角对称;前列腺无明显增大,密度均;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET图像未见糖代谢异常增高。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗示全身多处骨骼见点状致密影,考虑为“骨岛”可能;脊柱多个椎体及椎小关节骨质增生,提示为退行性改变。考虑为左肺上叶尖后段周围型MT可能;左侧颞叶糖代谢减低的稍低密度灶,MT待排,请结合增强MRI检查;右肺上叶尖段陈旧灶可能;两肺上、下叶小结节,请结合临床随访;两肺少许慢性炎症及轻度气肿;右侧锁骨区、纵隔、右侧肺门淋巴结炎性病变可能;甲状腺双叶良性病变可能,请结合超声检查;肝脏囊肿;左肾囊肿。</t>
+          <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET/CT图像示左侧颞叶见伴糖代谢减低的大片状稍低密度影，边界不清晰，邻近脑池受压变窄，中线结构未见明显移位；余脑实质未见明显糖代谢异常或占位。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。副鼻窦未见明显异常。颈部PET/CT图像示右侧锁骨区见伴糖代谢增高的淋巴结，糖代谢最高且较大者大小约为11.2MM×9.0MM，最大SUV值为3.0；甲状腺双叶无肿大，密度欠均匀，右叶伴糖代谢增高，最大SUV值为3.2；余颈部及左侧锁骨区未见明显糖代谢异常增高灶或肿大淋巴结；口咽、喉咽无殊。胸部PET/CT图像示左肺上叶尖后段见伴糖代谢异常增高的环形结节影，大小约为8.7MM×6.9MM，最大SUV值为9.2；右肺上叶尖段胸膜下见伴糖代谢轻度增高的片状实变影，范围约为37.2MM×9.47MM，最大SUV值为2.1，与邻近胸膜分界不清；右肺上、下叶及左肺上、下叶见多发不伴糖代谢异常增高的小结节影，直径均小于5.0MM；两肺野散在少许斑片条索影及小囊状透亮影；胸廓入口处右侧气管食管沟、腔静脉气管间隙、主肺动脉窗、气管隆突下、右肺门见多发淋巴结，部分伴糖代谢增高，糖代谢最高且较大者位于右肺门，大小约为11.8MM×8.8MM，最大SUV值为4.5；左肺门、双侧腋窝未见明显糖代谢异常增高灶或肿大淋巴结；双侧胸腔无积液；心脏无明显增大。腹部PET图像示胃壁、肠道呈生理性糖代谢增强；肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫示肝脏表面光整，各叶比例匀称，内见多发囊性低密度影，较大者位于左叶，大小约为8.3MM×7.4MM；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；左肾上极见直径约为6.7MM的囊性灶；胆囊、胰、右肾、双侧肾上腺未见明显占位；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET/CT图像示肛管糖代谢增高，最大SUV值为5.2，考虑为生理性摄取或炎性病变可能；膀胱充盈差，内见显像剂生理性积聚；余肠道呈生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强；膀胱充盈，壁光滑无增厚；双侧精囊腺形态可；双侧膀胱精囊三角对称；前列腺无明显增大，密度均；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见糖代谢异常增高。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示全身多处骨骼见点状致密影，考虑为“骨岛”可能；脊柱多个椎体及椎小关节骨质增生，提示为退行性改变。考虑为左肺上叶尖后段周围型MT可能；左侧颞叶糖代谢减低的稍低密度灶，MT待排，请结合增强MRI检查；右肺上叶尖段陈旧灶可能；两肺上、下叶小结节，请结合临床随访；两肺少许慢性炎症及轻度气肿；右侧锁骨区、纵隔、右侧肺门淋巴结炎性病变可能；甲状腺双叶良性病变可能，请结合超声检查；肝脏囊肿；左肾囊肿。</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -5336,7 +5336,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>左肺下叶基底干支气管截断,局部见不规则软组织肿块,大小约为47MM×46MM(IMA36),肿块边缘见多发毛刺影,部分边缘与左侧叶间胸膜分界不清,其远端肺组织不张,呈不规则片絮影。右肺未见异常密度区及结节灶。左侧胸膜结节样增厚,左侧胸腔内见少量积液。纵隔内4、5、7、10组见多发淋巴结,较大淋巴结位于气管隆突下,大小约为39MM×39MM(IMA31)。双侧锁骨上区未见肿大淋巴结。T9椎体见低密度区,局部见不规则软组织密度影,病变区与邻近右侧胸膜分界不清。左肺下叶基底干占位伴肺组织不张,考虑恶性,肺癌可能性大。左侧胸膜增厚及左侧胸腔内积液,考虑右侧胸膜转移。纵隔内多发淋巴结,考虑转移。T9椎体低密度灶,骨转移?建议骨扫描检查。</t>
+          <t>左肺下叶基底干支气管截断，局部见不规则软组织肿块，大小约为47MM×46MM(IMA36)，肿块边缘见多发毛刺影，部分边缘与左侧叶间胸膜分界不清，其远端肺组织不张，呈不规则片絮影。右肺未见异常密度区及结节灶。左侧胸膜结节样增厚，左侧胸腔内见少量积液。纵隔内4、5、7、10组见多发淋巴结，较大淋巴结位于气管隆突下，大小约为39MM×39MM(IMA31)。双侧锁骨上区未见肿大淋巴结。T9椎体见低密度区，局部见不规则软组织密度影，病变区与邻近右侧胸膜分界不清。左肺下叶基底干占位伴肺组织不张，考虑恶性，肺癌可能性大。左侧胸膜增厚及左侧胸腔内积液，考虑右侧胸膜转移。纵隔内多发淋巴结，考虑转移。T9椎体低密度灶，骨转移?建议骨扫描检查。</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -5358,7 +5358,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>肺癌脑转移、纵隔淋巴结转移放化疗后6个月复查,对照2014-3-25片:右上肺叶局部缺失,支气管残端见金属灶,未见肿物。右残肺膨胀好,右肺下叶后基底段近胸膜处见一类结节,边界清,短径约3MM。右肺下叶见不规则斑片磨玻璃稍高密度灶。右上肺支气管中断,余气管及支气管分支通畅。右侧上气管旁见肿大淋巴结,大小约15MM×11MM,增强扫描较明显强化,右侧血管前及隆突下见小淋巴结,大小约6MM×6MM及9MM×8MM。双侧胸腔未见积液。右侧胸膜稍增厚、粘连,左侧胸膜无增厚、粘连。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度不均匀。肝S8见一小低密度影,直径约5MM,边界清,增强未见强化。肝S6见一小结节低密度灶,边界清短径约3MM,强化不明显,较前未见明显变化。胆囊大小正常,其内未见结石影。肝内胆管、胆总管未见扩张,其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常,密度不均匀,见一结节低密度灶,边界欠清,大小约12MM×12MM,轻度强化,较前稍缩小。胰腺大小、形态正常,密度均匀。双肾所见正常。双肾上腺所见正常。腹膜后未见明显肿大淋巴结。双颈结构清晰,各血管充盈良好,甲状腺双叶及峡部形态正常,密度均匀,未见占位性病变。喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。双侧颌下腺、腮腺大小形态正常,密度均匀。颈部肌群排列对称,密度均匀,肌间隙未见明显异常,左颈IV、V区、左侧锁骨上窝见多个淋巴结,边界清,最大短径约11MM。右侧第5后肋局部骨质不连续,考虑术后改变,T12左侧椎板、L2椎体见不规则高密度灶,余所见骨质未见明确破坏征象。肺癌脑转移、纵隔淋巴结转移放化疗后6个月复查,对照2014-3-25片:右肺下叶后基底段类结节,增殖灶可能。右肺下叶斑片磨玻璃影,炎症可能。右侧上气管旁淋巴结肿大,较前无大变化。右侧血管前及隆突下小淋巴结,大致同前。左颈IV、V区、左侧锁骨上窝多发淋巴结。肝S8囊肿。肝S6小结节低密度灶,同前。脾脏低密度灶,较前稍缩小,可疑转移,建议随诊。T12左侧椎板、L2椎体病灶,考虑骨转移。</t>
+          <t>肺癌脑转移、纵隔淋巴结转移放化疗后6个月复查，对照2014-3-25片：右上肺叶局部缺失，支气管残端见金属灶，未见肿物。右残肺膨胀好，右肺下叶后基底段近胸膜处见一类结节，边界清，短径约3MM。右肺下叶见不规则斑片磨玻璃稍高密度灶。右上肺支气管中断，余气管及支气管分支通畅。右侧上气管旁见肿大淋巴结，大小约15MM×11MM，增强扫描较明显强化，右侧血管前及隆突下见小淋巴结，大小约6MM×6MM及9MM×8MM。双侧胸腔未见积液。右侧胸膜稍增厚、粘连，左侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝S8见一小低密度影，直径约5MM，边界清，增强未见强化。肝S6见一小结节低密度灶，边界清短径约3MM，强化不明显，较前未见明显变化。胆囊大小正常，其内未见结石影。肝内胆管、胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度不均匀，见一结节低密度灶，边界欠清，大小约12MM×12MM，轻度强化，较前稍缩小。胰腺大小、形态正常，密度均匀。双肾所见正常。双肾上腺所见正常。腹膜后未见明显肿大淋巴结。双颈结构清晰，各血管充盈良好，甲状腺双叶及峡部形态正常，密度均匀，未见占位性病变。喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。双侧颌下腺、腮腺大小形态正常，密度均匀。颈部肌群排列对称，密度均匀，肌间隙未见明显异常，左颈IV、V区、左侧锁骨上窝见多个淋巴结，边界清，最大短径约11MM。右侧第5后肋局部骨质不连续，考虑术后改变，T12左侧椎板、L2椎体见不规则高密度灶，余所见骨质未见明确破坏征象。肺癌脑转移、纵隔淋巴结转移放化疗后6个月复查，对照2014-3-25片：右肺下叶后基底段类结节，增殖灶可能。右肺下叶斑片磨玻璃影，炎症可能。右侧上气管旁淋巴结肿大，较前无大变化。右侧血管前及隆突下小淋巴结，大致同前。左颈IV、V区、左侧锁骨上窝多发淋巴结。肝S8囊肿。肝S6小结节低密度灶，同前。脾脏低密度灶，较前稍缩小，可疑转移，建议随诊。T12左侧椎板、L2椎体病灶，考虑骨转移。</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -5375,7 +5375,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>1.左肺下叶中心型肺癌,侵及左下肺静脉,伴局部肺不张,左肺门、纵隔淋巴结转移2.左侧胸腔少量积液3.肝左叶囊实性占位,伴肝内胆管轻度扩张,考虑转移可能性大,建议活检或治疗后复查4.胰腺占位,考虑转移伴胰管轻度扩张左肺下叶支气管截断,局部见一软组织密度肿块,其远端见不张实变的肺组织影,病变大小不易准确测量,估计长径约5.5CM左右,病变与心包关系密切;增强后病变呈不均匀强化,并见病变包埋左下肺静脉。左肺上叶透光区略示增高。余双肺清晰。左肺门10区及11区、纵隔内8R、8L、7区见增大淋巴结,并相互融合,4R、4L区见稍大淋巴结,大者短径约4.0CM,心包及右肺动脉轻度受压;增强后不均匀强化。左侧胸腔内见少许液性密度影。肝左叶见一大小约10.2CM×7.7CM囊性密度灶,厚壁,见壁结节向腔内突出,增强后壁结节可见强化。病变周期肝实质动脉期见片状一过性显著强化区,考虑为灌注异常。病变远端见少许轻度扩张的胆管影。门静脉左支受压变形。胆囊未见异常。胰腺颈部见一长径约0.9CM低密度灶,边缘略示模糊,其远端胆管轻度扩张。脾、双肾及肾上腺未见异常。腹腔及腹膜后未见显著增大淋巴结。</t>
+          <t>1.左肺下叶中心型肺癌，侵及左下肺静脉，伴局部肺不张，左肺门、纵隔淋巴结转移2.左侧胸腔少量积液3.肝左叶囊实性占位，伴肝内胆管轻度扩张，考虑转移可能性大，建议活检或治疗后复查4.胰腺占位，考虑转移伴胰管轻度扩张左肺下叶支气管截断，局部见一软组织密度肿块，其远端见不张实变的肺组织影，病变大小不易准确测量，估计长径约5.5CM左右，病变与心包关系密切；增强后病变呈不均匀强化，并见病变包埋左下肺静脉。左肺上叶透光区略示增高。余双肺清晰。左肺门10区及11区、纵隔内8R、8L、7区见增大淋巴结，并相互融合，4R、4L区见稍大淋巴结，大者短径约4.0CM，心包及右肺动脉轻度受压；增强后不均匀强化。左侧胸腔内见少许液性密度影。肝左叶见一大小约10.2CM×7.7CM囊性密度灶，厚壁，见壁结节向腔内突出，增强后壁结节可见强化。病变周期肝实质动脉期见片状一过性显著强化区，考虑为灌注异常。病变远端见少许轻度扩张的胆管影。门静脉左支受压变形。胆囊未见异常。胰腺颈部见一长径约0.9CM低密度灶，边缘略示模糊，其远端胆管轻度扩张。脾、双肾及肾上腺未见异常。腹腔及腹膜后未见显著增大淋巴结。</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -5397,7 +5397,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>右乳癌术后多线治疗后,肝转移术后,对比2016-10-20、10-15、04-07片:右乳癌术后改变,局部未见明显复发。双下肺小结节,考虑转移可能。双下肺增殖灶,较前未见明显变化。甲状腺右叶及峡部结节,较前未见明显变化,考虑结节性甲状腺肿可能性大。肝内多发类圆形结节,考虑转移,较前增大增多。肝门区、门腔间隙及下腔静脉旁淋巴结,较前增大。双肾多发小囊肿。L1椎体、L2椎体、骶尾椎体内、双侧髂骨、双侧坐骨后支、左侧股骨见多发类圆形致密影,考虑转移可能。盆腔CT未见明显异常。头颅CT扫描未见明显异常。右乳癌术后多线治疗后,肝转移术后,对比2016-10-20、10-15、04-07片:右乳术后缺失,局部皮肤未见明显增厚;左乳大小、形态未见明显异常。双侧腋窝及内乳区未见明显肿大淋巴结。右肺下叶外基底段(SE14,IM166)、左肺下叶后基底段(SE14,IM177)各见一结节,大者直径约6MM,边界清,增强可见轻度强化。双肺下叶见条索影及类结节灶,边界较清,较前未见明显变化。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。右侧斜裂可见结节样稍厚,左侧胸膜无增厚、粘连。所示甲状腺右叶及峡部可见数个低密度结节,最大约25MM×16MM,边界欠清,增强可见明显不均匀强化,较前未见明显变化。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度不均匀。肝S1见一不规则低密度灶,大小约17MM×12MM,边界稍模糊,密度欠均匀,增强扫描不均匀强化;残肝内见多发小类圆形稍低密度灶,大者直径15MM,边界模糊,增强扫描轻度强化,较前增大增多。肝内胆管正常,胆囊大小正常,胆总管未见扩张。门静脉所见正常。肝门区、门腔间隙及下腔静脉旁见数枚淋巴结,相互融合,增强扫描明显强化,较大者24MM×17MM,较前增大。脾大小、形态正常,密度均匀。胰腺体积缩小,实质萎缩,密度均匀。双肾见多个小类圆形低密度影,边界清,大小约2~3MM,未见强化。双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。膀胱充盈良好,境界清楚。子宫大小、形态未见明显异常,子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。大脑各叶、小脑及脑干形态未见异常,脑实质内未见明确异常密度影及异常强化灶,脑沟、裂、池不宽,脑室对称不大,中线结构无移位,幕下结构未见异常,颅骨未见骨质异常。L1椎体、L2椎体、骶尾椎体内、双侧髂骨、双侧坐骨后支、左侧股骨见多发类圆形致密影,大者直径约10MM,边界较清。余骨质未见明显异常。</t>
+          <t>右乳癌术后多线治疗后，肝转移术后，对比2016-10-20、10-15、04-07片：右乳癌术后改变，局部未见明显复发。双下肺小结节，考虑转移可能。双下肺增殖灶，较前未见明显变化。甲状腺右叶及峡部结节，较前未见明显变化，考虑结节性甲状腺肿可能性大。肝内多发类圆形结节，考虑转移，较前增大增多。肝门区、门腔间隙及下腔静脉旁淋巴结，较前增大。双肾多发小囊肿。L1椎体、L2椎体、骶尾椎体内、双侧髂骨、双侧坐骨后支、左侧股骨见多发类圆形致密影，考虑转移可能。盆腔CT未见明显异常。头颅CT扫描未见明显异常。右乳癌术后多线治疗后，肝转移术后，对比2016-10-20、10-15、04-07片：右乳术后缺失，局部皮肤未见明显增厚；左乳大小、形态未见明显异常。双侧腋窝及内乳区未见明显肿大淋巴结。右肺下叶外基底段(SE14，IM166)、左肺下叶后基底段(SE14，IM177)各见一结节，大者直径约6MM，边界清，增强可见轻度强化。双肺下叶见条索影及类结节灶，边界较清，较前未见明显变化。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。右侧斜裂可见结节样稍厚，左侧胸膜无增厚、粘连。所示甲状腺右叶及峡部可见数个低密度结节，最大约25MM×16MM，边界欠清，增强可见明显不均匀强化，较前未见明显变化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝S1见一不规则低密度灶，大小约17MM×12MM，边界稍模糊，密度欠均匀，增强扫描不均匀强化；残肝内见多发小类圆形稍低密度灶，大者直径15MM，边界模糊，增强扫描轻度强化，较前增大增多。肝内胆管正常，胆囊大小正常，胆总管未见扩张。门静脉所见正常。肝门区、门腔间隙及下腔静脉旁见数枚淋巴结，相互融合，增强扫描明显强化，较大者24MM×17MM，较前增大。脾大小、形态正常，密度均匀。胰腺体积缩小，实质萎缩，密度均匀。双肾见多个小类圆形低密度影，边界清，大小约2~3MM，未见强化。双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。子宫大小、形态未见明显异常，子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。大脑各叶、小脑及脑干形态未见异常，脑实质内未见明确异常密度影及异常强化灶，脑沟、裂、池不宽，脑室对称不大，中线结构无移位，幕下结构未见异常，颅骨未见骨质异常。L1椎体、L2椎体、骶尾椎体内、双侧髂骨、双侧坐骨后支、左侧股骨见多发类圆形致密影，大者直径约10MM，边界较清。余骨质未见明显异常。</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -5414,7 +5414,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>右侧乳腺10点钟方向,距离乳头2CM可见一个低回声病灶,大小约为28MM×17MM,不规则形,非平行生长,边缘不完整,可见细分叶、成角、毛刺等改变,内部回声不均匀,可见点状强回声,后方回声衰减。病灶处乳腺浅筋膜浅、深层中断。COOPER'S韧带夹角增大。CDFI:上述病灶内点状血流信号,可探及动脉频谱:VP:37CM/S,RI:0.73。左侧乳腺各层组织结构清晰,腺组织较均质,呈细蜂窝状较强回声,其内未见明确肿物回声。乳腺导管未见扩张。CDFI:左侧乳腺腺体内未见明确异常血流信号。右侧腋窝及右侧锁骨上区可见多个淋巴结回声,较大约29MM×15MM(腋下组),10MM×7MM(腋中组)、5MM×4MM(腋上组)、13MM×10MM(锁骨上区),椭圆形,边界清,皮髓质分界不清,淋巴门结构未探及。CDFI:上述淋巴结部分可见门型血流信号。左侧腋窝、左侧颈部及左侧锁骨上区未见明确异常淋巴结回声。右侧乳腺10点钟实性病灶,符合乳腺CA(BI-RADS分类:5)。右侧腋窝右侧锁骨上区多发淋巴结,考虑转移性淋巴结。左侧乳腺未见明确占位性病变(BI-RADS分类:1)。左侧腋窝左侧颈部左侧锁骨上区未见明确异常淋巴结声像。</t>
+          <t>右侧乳腺10点钟方向，距离乳头2CM可见一个低回声病灶，大小约为28MM×17MM，不规则形，非平行生长，边缘不完整，可见细分叶、成角、毛刺等改变，内部回声不均匀，可见点状强回声，后方回声衰减。病灶处乳腺浅筋膜浅、深层中断。COOPER'S韧带夹角增大。CDFI：上述病灶内点状血流信号，可探及动脉频谱：VP：37CM/S，RI：0.73。左侧乳腺各层组织结构清晰，腺组织较均质，呈细蜂窝状较强回声，其内未见明确肿物回声。乳腺导管未见扩张。CDFI：左侧乳腺腺体内未见明确异常血流信号。右侧腋窝及右侧锁骨上区可见多个淋巴结回声，较大约29MM×15MM(腋下组)，10MM×7MM(腋中组)、5MM×4MM(腋上组)、13MM×10MM(锁骨上区)，椭圆形，边界清，皮髓质分界不清，淋巴门结构未探及。CDFI：上述淋巴结部分可见门型血流信号。左侧腋窝、左侧颈部及左侧锁骨上区未见明确异常淋巴结回声。右侧乳腺10点钟实性病灶，符合乳腺CA(BI-RADS分类：5)。右侧腋窝右侧锁骨上区多发淋巴结，考虑转移性淋巴结。左侧乳腺未见明确占位性病变(BI-RADS分类：1)。左侧腋窝左侧颈部左侧锁骨上区未见明确异常淋巴结声像。</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -5436,7 +5436,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>1.结合临床,左肺上叶占位,考虑左肺癌;纵隔淋巴结转移2.双肺纤维灶3.双肺气肿4.右肺下叶小结节灶,建议观察5.左侧胸膜增厚6.肝囊肿7.右侧肾上腺低密度灶,考虑腺瘤左肺上叶胸膜下见一不规则软组织密度肿块影,与胸膜相贴,截面积约6.8CM×3.6CM;增强呈较显著不均匀强化。纵隔内主动脉弓旁、左肺动脉旁见多发肿大淋巴结,大者短径约2.3CM。双肺野内见少许条索状影,其内可见囊泡状过度透光区。右肺下叶见一小结节灶,直径不足0.5CM。左侧胸膜局部增厚。左锁上见小淋巴结,短径不足0.5CM。肝脏体积略缩小,其内可见多发囊性密度灶,边界清,未见强化,大者直径约3.0CM。右侧肾上腺见一低密度灶,密度较低,直径约2.4CM。胆囊壁不厚。胰腺、脾、左侧肾上腺及双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。</t>
+          <t>1.结合临床，左肺上叶占位，考虑左肺癌；纵隔淋巴结转移2.双肺纤维灶3.双肺气肿4.右肺下叶小结节灶，建议观察5.左侧胸膜增厚6.肝囊肿7.右侧肾上腺低密度灶，考虑腺瘤左肺上叶胸膜下见一不规则软组织密度肿块影，与胸膜相贴，截面积约6.8CM×3.6CM；增强呈较显著不均匀强化。纵隔内主动脉弓旁、左肺动脉旁见多发肿大淋巴结，大者短径约2.3CM。双肺野内见少许条索状影，其内可见囊泡状过度透光区。右肺下叶见一小结节灶，直径不足0.5CM。左侧胸膜局部增厚。左锁上见小淋巴结，短径不足0.5CM。肝脏体积略缩小，其内可见多发囊性密度灶，边界清，未见强化，大者直径约3.0CM。右侧肾上腺见一低密度灶，密度较低，直径约2.4CM。胆囊壁不厚。胰腺、脾、左侧肾上腺及双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -5458,7 +5458,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>左上肺癌术后化疗后,与2013-3-14日片对比:肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度均匀。肝内胆管正常,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。双肾所见正常。双肾上腺所见正常。腹主动脉旁见小淋巴结,短径约8MM,膈脚后、腹主动脉旁未见肿大淋巴结。膀胱充盈良好,境界清楚。精囊大小、形态正常,密度均匀,膀胱精囊角存在。前列腺大小、形态正常,密度均匀。双侧髂血管旁、腹股沟未见肿大淋巴结。盆腔见少量液体密度影。扫描范围内双肺多发结节、肿块影,大者直径约30MM,边界欠清,增强扫描较明显强化。双侧胸腔见少量积液,左侧胸膜见增厚。所见骨质未见明确破坏征象。左上肺癌术后化疗后,与2013-3-14日片对比:腹主动脉旁小淋巴结。盆腔少量积液。双下肺多发结节肿块影,考虑转移瘤。双侧胸腔积液,左侧胸膜增厚。</t>
+          <t>左上肺癌术后化疗后，与2013-3-14日片对比：肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾所见正常。双肾上腺所见正常。腹主动脉旁见小淋巴结，短径约8MM，膈脚后、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。精囊大小、形态正常，密度均匀，膀胱精囊角存在。前列腺大小、形态正常，密度均匀。双侧髂血管旁、腹股沟未见肿大淋巴结。盆腔见少量液体密度影。扫描范围内双肺多发结节、肿块影，大者直径约30MM，边界欠清，增强扫描较明显强化。双侧胸腔见少量积液，左侧胸膜见增厚。所见骨质未见明确破坏征象。左上肺癌术后化疗后，与2013-3-14日片对比：腹主动脉旁小淋巴结。盆腔少量积液。双下肺多发结节肿块影，考虑转移瘤。双侧胸腔积液，左侧胸膜增厚。</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -5475,7 +5475,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>右主支气管后壁见结节样病变,密度均匀,边界较清楚,范围约11MM×20MM,右主支气管变窄。病变向外延伸致右肺中间支气管、下叶支气管壁增厚,管腔变窄。右肺中叶、下叶见少量片状稍高密度病变,密度不均匀,边界模糊。右肺上叶后段见片状无纹理低密度区,边界清楚,壁薄。左下气管旁、气管隆突下见多发肿大淋巴结,最大者短径约14MM。左肺上叶舌段家少量斑片状高密度病变,边界较清楚。双侧胸腔未见积液。胸膜未见增厚。扫描范围内胸椎、胸壁骨及软组织未见异常。肝脏轮廓未见明显异常,各叶比例在正常范围以内,其外形轮廓光整。肝S、6分别见一个小低密度灶,密度均匀,增强扫描未见明显强化,边界清晰、锐利,较大者直径约6MM。肝内胆管未见明显异常,胆囊未见明显扩张,胆总管未扩张。肝门区未见明显异常。门静脉所见未见明显异常。脾大小未见明显异常,密度均匀。胰腺大小、形态未见明显异常,密度均匀。双肾见数个类圆形低密度病变,密度均匀,边界清晰,增强扫描未见明显强化,最大者直径约10MM。双肾上腺未见明显异常。腹腔干周围、腹主动脉旁、肠系膜根部未见肿大淋巴结。右侧主支气管、中间支气管、中叶及下叶支气管壁增厚,符合中央型肺癌并右肺中、下叶阻塞性肺炎纵膈肿大淋巴结,考虑转移瘤右肺上叶后段肺大泡左肺上叶舌段片状病变,考虑增值性病变肝多发低密度病变,考虑肝囊肿双肾多发囊肿。</t>
+          <t>右主支气管后壁见结节样病变，密度均匀，边界较清楚，范围约11MM×20MM，右主支气管变窄。病变向外延伸致右肺中间支气管、下叶支气管壁增厚，管腔变窄。右肺中叶、下叶见少量片状稍高密度病变，密度不均匀，边界模糊。右肺上叶后段见片状无纹理低密度区，边界清楚，壁薄。左下气管旁、气管隆突下见多发肿大淋巴结，最大者短径约14MM。左肺上叶舌段家少量斑片状高密度病变，边界较清楚。双侧胸腔未见积液。胸膜未见增厚。扫描范围内胸椎、胸壁骨及软组织未见异常。肝脏轮廓未见明显异常，各叶比例在正常范围以内，其外形轮廓光整。肝S、6分别见一个小低密度灶，密度均匀，增强扫描未见明显强化，边界清晰、锐利，较大者直径约6MM。肝内胆管未见明显异常，胆囊未见明显扩张，胆总管未扩张。肝门区未见明显异常。门静脉所见未见明显异常。脾大小未见明显异常，密度均匀。胰腺大小、形态未见明显异常，密度均匀。双肾见数个类圆形低密度病变，密度均匀，边界清晰，增强扫描未见明显强化，最大者直径约10MM。双肾上腺未见明显异常。腹腔干周围、腹主动脉旁、肠系膜根部未见肿大淋巴结。右侧主支气管、中间支气管、中叶及下叶支气管壁增厚，符合中央型肺癌并右肺中、下叶阻塞性肺炎纵膈肿大淋巴结，考虑转移瘤右肺上叶后段肺大泡左肺上叶舌段片状病变，考虑增值性病变肝多发低密度病变，考虑肝囊肿双肾多发囊肿。</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -5497,7 +5497,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>右肺上叶前段见一团块状软组织肿物,大小约43MM×38MM,密度尚均匀,未见钙化、坏死,轮廓不光整,边缘可见分叶,部分边界欠清晰,增强扫描较明显不均匀强化,病灶远端见片状影,增强扫描明显强化。右肺上叶(SE7,IM90)见一结节,直径约3MM,边界清。右肺、左肺上叶舌段见数个类结节灶,大者直径约4MM,边界清。右肺中叶内侧段见条片影,边界清,增强扫描可见明显强化。左肺下叶见少许斑片影,边界不清。右肺上叶前段支气管狭窄,气管及左肺支气管分支通畅。右上下气管旁及右侧肺门见数个肿大淋巴结,大者短径约17MM,密度尚均匀,增强扫描可见中度或明显强化。右侧锁骨上窝见数个小淋巴结,大者短径约5MM,边界清,密度均匀。双侧胸腔未见积液。双侧胸膜未见增厚。CTA示:右肺上叶肺动脉走形于病灶,局部管壁稍僵硬,未见明显充盈缺损。肝脏形态未见异常,轮廓光整,各叶比例在正常范围以内,增强扫描动脉期肝S6见结节状强化影,其余各期呈等密度。肝内胆管未见明显异常。胆囊不大、壁不厚,其内未见结石。胆总管未见扩张,其内未见结石。肝门区结构清晰。门静脉未见明显异常。脾脏大小、形态未见明显异常,密度均匀。胰腺大小、形态未见明显异常,密度均匀。双肾及双侧肾上腺大小、形态未见明显异常,密度均匀。膈脚后、肝门区、腹主动脉旁、腹腔干周围未见明显肿大淋巴结。扫描层面内左侧第2前肋骨质连续性中断,周围软组织稍增多,所见其余骨质未见明显骨质破坏。右肺上叶前段病变,考虑右上肺癌并阻塞性肺不张。右肺上叶结节,性质待定,建议随诊。右肺、左肺上叶舌段类结节灶,考虑增殖灶可能性大。右肺中叶内侧段条片影,考虑节段性肺不张。左肺下叶斑片影,考虑炎症。右上下气管旁右侧肺门淋巴结肿大,考虑转移。右侧锁骨上窝小淋巴结,建议随诊。增强扫描动脉期肝S6结节状强化影,考虑异常灌注可能性大。左侧第2前肋骨折,周围软组织稍增多,请结合临床,以除外病理性骨折。</t>
+          <t>右肺上叶前段见一团块状软组织肿物，大小约43MM×38MM，密度尚均匀，未见钙化、坏死，轮廓不光整，边缘可见分叶，部分边界欠清晰，增强扫描较明显不均匀强化，病灶远端见片状影，增强扫描明显强化。右肺上叶(SE7，IM90)见一结节，直径约3MM，边界清。右肺、左肺上叶舌段见数个类结节灶，大者直径约4MM，边界清。右肺中叶内侧段见条片影，边界清，增强扫描可见明显强化。左肺下叶见少许斑片影，边界不清。右肺上叶前段支气管狭窄，气管及左肺支气管分支通畅。右上下气管旁及右侧肺门见数个肿大淋巴结，大者短径约17MM，密度尚均匀，增强扫描可见中度或明显强化。右侧锁骨上窝见数个小淋巴结，大者短径约5MM，边界清，密度均匀。双侧胸腔未见积液。双侧胸膜未见增厚。CTA示：右肺上叶肺动脉走形于病灶，局部管壁稍僵硬，未见明显充盈缺损。肝脏形态未见异常，轮廓光整，各叶比例在正常范围以内，增强扫描动脉期肝S6见结节状强化影，其余各期呈等密度。肝内胆管未见明显异常。胆囊不大、壁不厚，其内未见结石。胆总管未见扩张，其内未见结石。肝门区结构清晰。门静脉未见明显异常。脾脏大小、形态未见明显异常，密度均匀。胰腺大小、形态未见明显异常，密度均匀。双肾及双侧肾上腺大小、形态未见明显异常，密度均匀。膈脚后、肝门区、腹主动脉旁、腹腔干周围未见明显肿大淋巴结。扫描层面内左侧第2前肋骨质连续性中断，周围软组织稍增多，所见其余骨质未见明显骨质破坏。右肺上叶前段病变，考虑右上肺癌并阻塞性肺不张。右肺上叶结节，性质待定，建议随诊。右肺、左肺上叶舌段类结节灶，考虑增殖灶可能性大。右肺中叶内侧段条片影，考虑节段性肺不张。左肺下叶斑片影，考虑炎症。右上下气管旁右侧肺门淋巴结肿大，考虑转移。右侧锁骨上窝小淋巴结，建议随诊。增强扫描动脉期肝S6结节状强化影，考虑异常灌注可能性大。左侧第2前肋骨折，周围软组织稍增多，请结合临床，以除外病理性骨折。</t>
         </is>
       </c>
       <c r="B255" t="inlineStr"/>
@@ -5510,7 +5510,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>肺癌化疗后复查,与2014-08-01日片对比:右上肺结节,较前未见明显变化;纵隔及右肺门小淋巴结,大致同前;肝内新发病灶,考虑转移瘤。肝内多发囊性灶,考虑囊肿,较前未见明显变化。胸腰椎多发结节致密灶,较前未见明显变化。肺癌化疗后复查,与2014-08-01日片对比:右肺上叶后段近胸膜下见一不规则软组织密度结节,大小约12MM×19MM,境界欠清,边缘分叶,可见长短毛刺样突起,与邻近胸膜及斜裂粘连牵拉,增强扫描可见不均匀轻度强化,较前未见明显变化。左肺下叶见少许条索灶,余肺纹理清晰,未见明显实质性病变。气管及支气管分支通畅。右下气管旁、主肺动脉窗及右肺门见数个小淋巴结,大者短径约6MM,界清,增强扫描轻度强化,较前变化不大。左肺门未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚、粘连。原心包腔底部积液已消失。肝脏形态、比例正常,轮廓光整。密度欠均匀,肝内新出现多发散在分布的低密度影,最大者位于S7,大小约17MM×19MM,边界欠清,增强后可见不均匀强化。肝S4、5、6、8内见散在多个囊状低密度灶,界清,大者直径约7MM,增强扫描无明显强化。较前未见明显变化。肝内外胆管无扩张,未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张。肝门区正常。门静脉所见正常。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。双肾所见正常。双肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。L1~3、T7、8、11椎体内见多个大小不等结节状稍致密灶,境界清楚,较前未见明显变化。</t>
+          <t>肺癌化疗后复查，与2014-08-01日片对比：右上肺结节，较前未见明显变化；纵隔及右肺门小淋巴结，大致同前；肝内新发病灶，考虑转移瘤。肝内多发囊性灶，考虑囊肿，较前未见明显变化。胸腰椎多发结节致密灶，较前未见明显变化。肺癌化疗后复查，与2014-08-01日片对比：右肺上叶后段近胸膜下见一不规则软组织密度结节，大小约12MM×19MM，境界欠清，边缘分叶，可见长短毛刺样突起，与邻近胸膜及斜裂粘连牵拉，增强扫描可见不均匀轻度强化，较前未见明显变化。左肺下叶见少许条索灶，余肺纹理清晰，未见明显实质性病变。气管及支气管分支通畅。右下气管旁、主肺动脉窗及右肺门见数个小淋巴结，大者短径约6MM，界清，增强扫描轻度强化，较前变化不大。左肺门未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚、粘连。原心包腔底部积液已消失。肝脏形态、比例正常，轮廓光整。密度欠均匀，肝内新出现多发散在分布的低密度影，最大者位于S7，大小约17MM×19MM，边界欠清，增强后可见不均匀强化。肝S4、5、6、8内见散在多个囊状低密度灶，界清，大者直径约7MM，增强扫描无明显强化。较前未见明显变化。肝内外胆管无扩张，未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾所见正常。双肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。L1~3、T7、8、11椎体内见多个大小不等结节状稍致密灶，境界清楚，较前未见明显变化。</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -5527,7 +5527,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>双肺野内见多发结节及软组织肿块影,部分其内可见小空泡影,大者直径约1.9CM。另于右肺野内见多发斑片状及条索状密度增高影,边缘模糊。另右肺斜裂胸膜增厚。双侧叶间胸膜示增厚,左侧叶间胸膜见小类结节灶。左乳外上象限见一不规则软组织结节灶,长径约0.8CM,边缘分叶可见少许毛刺,增强后呈轻度强化。纵隔内右上气管旁、气管前腔静脉后、主肺动脉窗区、隆突下、双肺门见多发小或稍大淋巴结,大者短径约1.0CM,部分内可见钙化。1.结合临床,右肺癌双肺转移治疗后,较前(2016-7-26)进展2.结合临床,左乳癌治疗后,较前变化不著3.纵隔及肺门淋巴结增大,较前增大4.右肺局限性炎症及纤维炎性变,变化不著;双侧叶间胸膜增厚,均变化不著</t>
+          <t>双肺野内见多发结节及软组织肿块影，部分其内可见小空泡影，大者直径约1.9CM。另于右肺野内见多发斑片状及条索状密度增高影，边缘模糊。另右肺斜裂胸膜增厚。双侧叶间胸膜示增厚，左侧叶间胸膜见小类结节灶。左乳外上象限见一不规则软组织结节灶，长径约0.8CM，边缘分叶可见少许毛刺，增强后呈轻度强化。纵隔内右上气管旁、气管前腔静脉后、主肺动脉窗区、隆突下、双肺门见多发小或稍大淋巴结，大者短径约1.0CM，部分内可见钙化。1.结合临床，右肺癌双肺转移治疗后，较前(2016-7-26)进展2.结合临床，左乳癌治疗后，较前变化不著3.纵隔及肺门淋巴结增大，较前增大4.右肺局限性炎症及纤维炎性变，变化不著；双侧叶间胸膜增厚，均变化不著</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -5549,7 +5549,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>左乳多发病灶,符合乳腺癌。左侧腋窝肿大淋巴结,考虑转移。双肺散在多发结节影,考虑转移瘤可能性大。纵隔、双侧锁骨上区淋巴结,性质待定,建议随诊复查。肝内多发病灶,考虑转移瘤。左肾囊肿。左侧上颌窦炎。胸骨、T9、T12、L1、L3椎体骨质密度改变,考虑转移瘤。左乳房皮肤明显增厚,最厚处约19MM,左乳内见多发斑片状、结节状软组织密度影,较大病灶位于左乳外象限,大小约30MM×25MM,边缘见多发毛刺牵拉左乳皮肤,增强扫描明显强化。左乳可见多发条片状稍高密度影,增强扫描明显强化。左侧腋窝见数个肿大淋巴结,边界不清,大者大小约11MM×18MM,增强扫描明显强化。右乳未见明确肿物。右侧腋窝、双侧内乳区未见明显肿大淋巴结。双肺见散在多发结节影,边界不清,部分呈磨玻璃密度,大者直径约7MM。右中肺、左上肺舌段见少量条索影,边界清。气管及支气管分支通畅。双下气管旁、隆突下、双肺门见多发淋巴结,边界不清,大者短径约7MM,明显强化。双侧锁骨上区见数个小淋巴结,大者短径约5MM,明显强化。双侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏形态、各叶比例在正常范围以内,其外形轮廓光整,肝内见散在多发稍低密度肿块或结节,边界欠清,大者大小约30MM×21MM,增强扫描轻度强化。肝内胆管未见扩张,胆囊不大,胆总管未见扩张,其内未见结石影。门静脉及肝静脉未见异常。脾未见增大,密度均匀。胰腺大小、形态未见异常,密度均匀。左肾见一类圆形低密度灶,边界清,直径约7MM,未见强化。右肾及双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见明显肿大淋巴结。颈部结构清晰,各血管充盈良好。甲状腺未见明确病变。喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。双侧颌下腺、腮腺未见异常。颈部未见肿大淋巴结。左侧上颌窦粘膜增厚。T12局部骨质密度减低,胸骨、T9、L1、L3椎体见片状骨质密度增高影,边界不清。余所见骨质未见明确破坏征象。。</t>
+          <t>左乳多发病灶，符合乳腺癌。左侧腋窝肿大淋巴结，考虑转移。双肺散在多发结节影，考虑转移瘤可能性大。纵隔、双侧锁骨上区淋巴结，性质待定，建议随诊复查。肝内多发病灶，考虑转移瘤。左肾囊肿。左侧上颌窦炎。胸骨、T9、T12、L1、L3椎体骨质密度改变，考虑转移瘤。左乳房皮肤明显增厚，最厚处约19MM，左乳内见多发斑片状、结节状软组织密度影，较大病灶位于左乳外象限，大小约30MM×25MM，边缘见多发毛刺牵拉左乳皮肤，增强扫描明显强化。左乳可见多发条片状稍高密度影，增强扫描明显强化。左侧腋窝见数个肿大淋巴结，边界不清，大者大小约11MM×18MM，增强扫描明显强化。右乳未见明确肿物。右侧腋窝、双侧内乳区未见明显肿大淋巴结。双肺见散在多发结节影，边界不清，部分呈磨玻璃密度，大者直径约7MM。右中肺、左上肺舌段见少量条索影，边界清。气管及支气管分支通畅。双下气管旁、隆突下、双肺门见多发淋巴结，边界不清，大者短径约7MM，明显强化。双侧锁骨上区见数个小淋巴结，大者短径约5MM，明显强化。双侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，肝内见散在多发稍低密度肿块或结节，边界欠清，大者大小约30MM×21MM，增强扫描轻度强化。肝内胆管未见扩张，胆囊不大，胆总管未见扩张，其内未见结石影。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。左肾见一类圆形低密度灶，边界清，直径约7MM，未见强化。右肾及双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见明显肿大淋巴结。颈部结构清晰，各血管充盈良好。甲状腺未见明确病变。喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。双侧颌下腺、腮腺未见异常。颈部未见肿大淋巴结。左侧上颌窦粘膜增厚。T12局部骨质密度减低，胸骨、T9、L1、L3椎体见片状骨质密度增高影，边界不清。余所见骨质未见明确破坏征象。。</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -5571,7 +5571,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>左肺上叶糖代谢异常增高的占位,考虑MT可能,请结合临床;左侧斜裂胸膜增厚;双侧胸腔少量积液;第2胸椎右侧横突局部糖代谢轻度增高,转移待排,建议随访骨扫描;肝脏多发糖代谢减低的占位,考虑良性病变;盆腔少量积液;甲状腺双腺叶糖代谢异常增高的病变,建议超声进一步检查。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑放射性分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼内肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET/CT图像示甲状腺双腺叶糖代谢异常增高,最大SUV值约10.1,内可见低密度灶,较大者位于左叶,大小约26.0MM×25.0MM,内并可见钙化影。双侧颈部、锁骨区未见明显糖代谢异常增高灶。胸部PET/CT图像示左肺上叶见大小约27.5MM×18.1MM、边界不清的占位,内密度不均,可见支气管通入,边缘可见毛刺,远端胸膜牵拉,伴糖代谢异常增高,最大SUV值约9.5。左侧斜裂胸膜增厚。肺门、纵隔、胸壁、腋窝未见明显糖代谢异常增高灶。纵隔无明显肿大淋巴结,双肺门影不大;双侧胸膜无增厚;双侧胸腔少量积液;心脏无明显增大;双侧腋窝无明显肿大淋巴结;双侧乳腺无明显占位。腹部PET/CT图像示肝脏增大,内见多发低密度占位,最大者大小约148.0MM×105.0MM,部分内可见更低密度区,呈糖代谢减低。肝脏内另见2枚无糖代谢增高的囊性低密度灶,较大者大小约45.0MM×28.0MM。胃壁均匀性轻度糖代谢生理性增强;肠道呈线型生理性糖代谢增强;胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈,壁光滑无增厚;子宫和双附件区未见明显占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔少量积液。骨骼PET/CT图像示第2胸椎右侧横突局部糖代谢轻度增高,最大SUV值约2.8,局部骨皮质可疑毛糙。</t>
+          <t>左肺上叶糖代谢异常增高的占位，考虑MT可能，请结合临床；左侧斜裂胸膜增厚；双侧胸腔少量积液；第2胸椎右侧横突局部糖代谢轻度增高，转移待排，建议随访骨扫描；肝脏多发糖代谢减低的占位，考虑良性病变；盆腔少量积液；甲状腺双腺叶糖代谢异常增高的病变，建议超声进一步检查。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET/CT图像示甲状腺双腺叶糖代谢异常增高，最大SUV值约10.1，内可见低密度灶，较大者位于左叶，大小约26.0MM×25.0MM，内并可见钙化影。双侧颈部、锁骨区未见明显糖代谢异常增高灶。胸部PET/CT图像示左肺上叶见大小约27.5MM×18.1MM、边界不清的占位，内密度不均，可见支气管通入，边缘可见毛刺，远端胸膜牵拉，伴糖代谢异常增高，最大SUV值约9.5。左侧斜裂胸膜增厚。肺门、纵隔、胸壁、腋窝未见明显糖代谢异常增高灶。纵隔无明显肿大淋巴结，双肺门影不大；双侧胸膜无增厚；双侧胸腔少量积液；心脏无明显增大；双侧腋窝无明显肿大淋巴结；双侧乳腺无明显占位。腹部PET/CT图像示肝脏增大，内见多发低密度占位，最大者大小约148.0MM×105.0MM，部分内可见更低密度区，呈糖代谢减低。肝脏内另见2枚无糖代谢增高的囊性低密度灶，较大者大小约45.0MM×28.0MM。胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈，壁光滑无增厚；子宫和双附件区未见明显占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔少量积液。骨骼PET/CT图像示第2胸椎右侧横突局部糖代谢轻度增高，最大SUV值约2.8，局部骨皮质可疑毛糙。</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -5593,7 +5593,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>1.结合临床,直肠癌治疗后,较前片(2015-1-20)变化不著2.结合临床,左肺癌治疗后,病变显示不清;左肺炎症较前略好转;右肺下叶炎症;肝转移较前变化不著;纵隔淋巴结转移,较前略增大;双侧肾上腺结节灶,考虑转移,较前变化不著3.结合临床,骨转移治疗后,较前变化不著,胸骨局部骨质密度增高,变化不著4.双肾低密度灶,较前变化不著左肺上叶及下叶背段示斑片状密度增高影,其内见充气支气管征。右肺下叶可见斑片状密度增高影。纵隔内见多枚小淋巴结影,部分钙化,双侧胸膜未见增厚,双侧胸腔未见液性密度影。纵隔内2R区示一结节灶,短径约0.8CM。肝右后叶上段实质内示低密度肿块,形态不规则,截面约1.9CM×1.8CM,边缘模糊,增强后其内示不均质点状强化。胆囊充盈可,壁不厚。胰、脾未见异常。双侧肾上腺形态欠自然,右侧肾上腺体部可见结节灶,短径约0.8CM。双肾密度欠均,局部示片状低密度区。腹膜后未见显著增大淋巴结。直肠与乙状结肠交界处及其下方直肠壁示偏心状增厚,相应节段肠腔略狭窄,其外膜面略示毛糙,肠管周围脂肪间隙尚清晰。前列腺及双侧精囊腺未见明确异常。膀胱充盈可,壁不厚。盆腔内及双侧腹股沟未见明显增大淋巴结。骨窗示腰椎L2椎体骨质密度增高。右侧骶骨、左侧髂骨翼局部示结节状密度增高影。右侧第八后肋局部可见成骨性骨质改变。胸骨柄上份局部骨质密度增高。</t>
+          <t>1.结合临床，直肠癌治疗后，较前片(2015-1-20)变化不著2.结合临床，左肺癌治疗后，病变显示不清；左肺炎症较前略好转；右肺下叶炎症；肝转移较前变化不著；纵隔淋巴结转移，较前略增大；双侧肾上腺结节灶，考虑转移，较前变化不著3.结合临床，骨转移治疗后，较前变化不著，胸骨局部骨质密度增高，变化不著4.双肾低密度灶，较前变化不著左肺上叶及下叶背段示斑片状密度增高影，其内见充气支气管征。右肺下叶可见斑片状密度增高影。纵隔内见多枚小淋巴结影，部分钙化，双侧胸膜未见增厚，双侧胸腔未见液性密度影。纵隔内2R区示一结节灶，短径约0.8CM。肝右后叶上段实质内示低密度肿块，形态不规则，截面约1.9CM×1.8CM，边缘模糊，增强后其内示不均质点状强化。胆囊充盈可，壁不厚。胰、脾未见异常。双侧肾上腺形态欠自然，右侧肾上腺体部可见结节灶，短径约0.8CM。双肾密度欠均，局部示片状低密度区。腹膜后未见显著增大淋巴结。直肠与乙状结肠交界处及其下方直肠壁示偏心状增厚，相应节段肠腔略狭窄，其外膜面略示毛糙，肠管周围脂肪间隙尚清晰。前列腺及双侧精囊腺未见明确异常。膀胱充盈可，壁不厚。盆腔内及双侧腹股沟未见明显增大淋巴结。骨窗示腰椎L2椎体骨质密度增高。右侧骶骨、左侧髂骨翼局部示结节状密度增高影。右侧第八后肋局部可见成骨性骨质改变。胸骨柄上份局部骨质密度增高。</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -5610,7 +5610,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>左上肺癌术后化疗后复发放化疗后:左下肺前底段及右上肺后段结节代谢较活跃,疑转移;左侧胸膜增厚代谢活跃,考虑转移;双锁骨上、纵隔、右膈角后、腹主动脉旁及右髂总血管旁淋巴结代谢活跃,考虑转移;骶骨右份局部骨质破坏代谢活跃,考虑转移。双侧上颌窦炎症。右上肺尖肺大泡。肝S4及S5囊肿。前列腺钙化灶。空腹6H以上,静脉注射18F-FDG,静息约60MMIN后行全身PET/CT断层显像,影像清晰。左上肺癌术后化疗后复发放化疗后:左上肺缺如;左下肺前底段及右上肺后段结节放射性分布略浓密,SUV约3.5,大者约0.9CM×1.0CM;右上肺尖囊状透亮影;余双侧肺纹理未见明显异常,气管、支气管通畅。左侧胸膜增厚放射浓聚,SUV约7.9,部分层面病灶侵犯左膈脚。双锁骨上、纵隔右侧气管食管沟、右上气管旁及隆突下多个淋巴结放射性分布较浓密,SUV约6.0,最大约1.0CM×1.3CM。纵隔主动脉旁小淋巴结放射性分布未见异常。双肺门及双侧腋窝未见肿大淋巴结及异常放射性分布。双侧脑实质密度、形态正常,放射性分布均匀、对称,诸脑室、脑池、脑沟、脑裂未见异常,中线结构居中。双侧上颌窦低密度影放射性稀疏。蝶窦、额窦及筛窦结构及放射性分布未见明显异常。鼻咽、口咽及喉咽结构及放射性分布未见明显异常。甲状腺形态结构及放射性分布未见明显异常。双上颈小淋巴结放射性分布未见明显异常。肝S4及S5囊状低密度影放射性稀疏,最大约0.5CM×0.6CM,CT值约19HU;余肝脏形态、结构及放射性分布未见明显异常。肝内、外胆管及胆总管未见扩张。胆囊、胃及十二指肠放射性分布未见明显异常。脾脏、胰腺、双肾及肾上腺形态、结构及放射性分布未见明显异常。右膈脚后、腹主动脉旁及右髂总血管旁数个淋巴结放射性分布较浓密,SUV约4.8,最大约1.2CM×1.4CM。盆腔放射性分布均匀。前列腺内数个点状高密度影放射性缺损,CT值约157HU。膀胱及肠管等形态、结构及放射性分布未见明显异常。左侧髂血管旁及双腹股沟未见肿大淋巴结及异常放射性分布。左侧第6后肋术后改变。骶骨右份局部骨质破坏放射性浓聚,SUV约6.6。余所见颅骨、余躯干骨、四肢骨放射性分布未见明显异常。</t>
+          <t>左上肺癌术后化疗后复发放化疗后：左下肺前底段及右上肺后段结节代谢较活跃，疑转移；左侧胸膜增厚代谢活跃，考虑转移；双锁骨上、纵隔、右膈角后、腹主动脉旁及右髂总血管旁淋巴结代谢活跃，考虑转移；骶骨右份局部骨质破坏代谢活跃，考虑转移。双侧上颌窦炎症。右上肺尖肺大泡。肝S4及S5囊肿。前列腺钙化灶。空腹6H以上，静脉注射18F-FDG，静息约60MMIN后行全身PET/CT断层显像，影像清晰。左上肺癌术后化疗后复发放化疗后：左上肺缺如；左下肺前底段及右上肺后段结节放射性分布略浓密，SUV约3.5，大者约0.9CM×1.0CM；右上肺尖囊状透亮影；余双侧肺纹理未见明显异常，气管、支气管通畅。左侧胸膜增厚放射浓聚，SUV约7.9，部分层面病灶侵犯左膈脚。双锁骨上、纵隔右侧气管食管沟、右上气管旁及隆突下多个淋巴结放射性分布较浓密，SUV约6.0，最大约1.0CM×1.3CM。纵隔主动脉旁小淋巴结放射性分布未见异常。双肺门及双侧腋窝未见肿大淋巴结及异常放射性分布。双侧脑实质密度、形态正常，放射性分布均匀、对称，诸脑室、脑池、脑沟、脑裂未见异常，中线结构居中。双侧上颌窦低密度影放射性稀疏。蝶窦、额窦及筛窦结构及放射性分布未见明显异常。鼻咽、口咽及喉咽结构及放射性分布未见明显异常。甲状腺形态结构及放射性分布未见明显异常。双上颈小淋巴结放射性分布未见明显异常。肝S4及S5囊状低密度影放射性稀疏，最大约0.5CM×0.6CM，CT值约19HU；余肝脏形态、结构及放射性分布未见明显异常。肝内、外胆管及胆总管未见扩张。胆囊、胃及十二指肠放射性分布未见明显异常。脾脏、胰腺、双肾及肾上腺形态、结构及放射性分布未见明显异常。右膈脚后、腹主动脉旁及右髂总血管旁数个淋巴结放射性分布较浓密，SUV约4.8，最大约1.2CM×1.4CM。盆腔放射性分布均匀。前列腺内数个点状高密度影放射性缺损，CT值约157HU。膀胱及肠管等形态、结构及放射性分布未见明显异常。左侧髂血管旁及双腹股沟未见肿大淋巴结及异常放射性分布。左侧第6后肋术后改变。骶骨右份局部骨质破坏放射性浓聚，SUV约6.6。余所见颅骨、余躯干骨、四肢骨放射性分布未见明显异常。</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -5627,7 +5627,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>左乳癌术后,对比2017-04-14片:左乳癌术后改变,左前胸壁未见明确复发征象。双肺多发结节,考虑转移,较前缩小减少。左肺及右肺中叶条索灶,大致同前,考虑慢性炎症可能性大。右下肺点状钙化。右肺尖少许纤维灶,大致同前。双侧锁骨上窝、纵隔及双肺门多发淋巴结,较前缩小减少。右肾囊肿同前。颈部未见明显病变。左乳癌术后,对比2017-04-14片:左侧乳腺缺失,左前胸壁未见明确结节及肿物。右乳未见明确肿物。双侧腋窝未见明确肿大淋巴结。双肺见散在多发结节,大者位于右肺中叶,大小约为17MM×15MM,部分边界欠清,边缘见多发毛刺,增强扫描见明显强化,左肺上叶病灶侵犯左肺上叶尖后段支气管及邻近纵隔胸膜,病灶较前缩小减少。右肺下叶见两个点状钙化灶,直径约2MM,基本同前。左肺及右肺中叶见条索状、条片状高密度灶,边界不清,同前。右肺尖见少许条索状高密度灶,边界尚清,大致同前。气管及余支气管分支通畅。双侧胸腔未见积液。胸膜未见增厚。双侧锁骨上窝、右上下气管旁、主肺动脉窗、隆突下及双肺门见数个淋巴结,最大者约为14MM×9MM,边界不清,部分密度不均,增强扫描见不均匀强化,较前缩小减少。颈部结构清晰,各血管充盈良好,甲状腺双叶及峡部、双侧颌下腺、腮腺形态正常,密度均匀。喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。颈部肌群排列对称,密度均匀,肌间隙未见明显异常。余颈部各区未见肿大淋巴结。肝脏形态未见异常,各叶比例正常,其外形轮廓光整,肝实质密度尚均匀,未见异常强化。肝内胆管、胆总管未见扩张,内未见结石影。胆囊大小未见异常,其内未见结石影。肝门区未见异常。门静脉未见异常。脾大小未见异常,密度均匀。胰腺大小、形态未见异常,密度均匀。右肾见一类圆形低密度灶,直径约4MM,增强扫描未见强化,基本同前。双肾上腺及左肾未见明确异常。腹主动脉旁未见肿大淋巴结。扫描层面内骨质未见明显破坏。</t>
+          <t>左乳癌术后，对比2017-04-14片：左乳癌术后改变，左前胸壁未见明确复发征象。双肺多发结节，考虑转移，较前缩小减少。左肺及右肺中叶条索灶，大致同前，考虑慢性炎症可能性大。右下肺点状钙化。右肺尖少许纤维灶，大致同前。双侧锁骨上窝、纵隔及双肺门多发淋巴结，较前缩小减少。右肾囊肿同前。颈部未见明显病变。左乳癌术后，对比2017-04-14片：左侧乳腺缺失，左前胸壁未见明确结节及肿物。右乳未见明确肿物。双侧腋窝未见明确肿大淋巴结。双肺见散在多发结节，大者位于右肺中叶，大小约为17MM×15MM，部分边界欠清，边缘见多发毛刺，增强扫描见明显强化，左肺上叶病灶侵犯左肺上叶尖后段支气管及邻近纵隔胸膜，病灶较前缩小减少。右肺下叶见两个点状钙化灶，直径约2MM，基本同前。左肺及右肺中叶见条索状、条片状高密度灶，边界不清，同前。右肺尖见少许条索状高密度灶，边界尚清，大致同前。气管及余支气管分支通畅。双侧胸腔未见积液。胸膜未见增厚。双侧锁骨上窝、右上下气管旁、主肺动脉窗、隆突下及双肺门见数个淋巴结，最大者约为14MM×9MM，边界不清，部分密度不均，增强扫描见不均匀强化，较前缩小减少。颈部结构清晰，各血管充盈良好，甲状腺双叶及峡部、双侧颌下腺、腮腺形态正常，密度均匀。喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。颈部肌群排列对称，密度均匀，肌间隙未见明显异常。余颈部各区未见肿大淋巴结。肝脏形态未见异常，各叶比例正常，其外形轮廓光整，肝实质密度尚均匀，未见异常强化。肝内胆管、胆总管未见扩张，内未见结石影。胆囊大小未见异常，其内未见结石影。肝门区未见异常。门静脉未见异常。脾大小未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。右肾见一类圆形低密度灶，直径约4MM，增强扫描未见强化，基本同前。双肾上腺及左肾未见明确异常。腹主动脉旁未见肿大淋巴结。扫描层面内骨质未见明显破坏。</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -5644,7 +5644,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>右侧乳腺多发实性占位,结合病史,考虑恶性。左侧乳腺实性结节,考虑良性可能性大(纤维腺瘤?),建议定期复查。右侧腋窝腋下组淋巴结肿大,考虑淋巴结转移瘤可能性大。左侧腋窝淋巴结,考虑良性淋巴结。乳腺各层组织结构清晰,右乳11-2点钟方向乳头旁可见不均质低回声灶,范围约59MM×44MM×22MM,形态不规则,边界不清,边缘呈毛玻璃状改变,内部回声不均匀,可见散在点状强回声,后方回声稍衰减,局部浅筋膜浅深层回声中断;其旁约11点钟距乳头约24MM处可见一低回声结节,大小约8MM×5MM,边界尚清,形态欠规则,前后径&gt;左右径,内部回声欠均匀,后方回声稍衰减,COOPER'S韧带部分受侵;右乳12点钟乳头约37MM另可见一低回声灶,大小约24MM×20MM×17MM,呈浅分叶状,边界尚清,内部回声不均,可见点状强回声,局部浅筋膜浅深层显示模糊,与上述较大病灶界限欠清。左乳内可见2个低回声结节,大小分别约:6MM×5MM(12点钟方向距乳头约9MM处),7MM×5MM(5点钟方向距乳头约6MM处),呈浅分叶状,边界清,似可见包膜样回声,局部浅筋膜浅深层连续;余腺组织尚均质,呈细蜂窝状较强回声。左侧乳腺导管未见扩张。CDFI:右乳11-2点钟病灶内可见少许点条状血流信号,可测及动脉频谱,VP8CM/S,RI0.84;左乳结节内未见明确血流信号。右侧腋窝可见多个淋巴结,均位于腋下组,大小约25MM×13MM,边界清,形态不规则,皮质不规则增厚,较厚处约10MM,皮髓质界限清,淋巴门存在。腋中组及腋上组淋巴结未探及。CDFI:上述淋巴结内可探及丰富血流信号。左侧腋窝可见一个淋巴结回声,位于腋下组,大小约11MM×5MM,边界清,椭圆形,皮髓质分界清,淋巴结门存在。CDFI:上述淋巴结内未见明确异常血流信号。</t>
+          <t>右侧乳腺多发实性占位，结合病史，考虑恶性。左侧乳腺实性结节，考虑良性可能性大(纤维腺瘤?)，建议定期复查。右侧腋窝腋下组淋巴结肿大，考虑淋巴结转移瘤可能性大。左侧腋窝淋巴结，考虑良性淋巴结。乳腺各层组织结构清晰，右乳11-2点钟方向乳头旁可见不均质低回声灶，范围约59MM×44MM×22MM，形态不规则，边界不清，边缘呈毛玻璃状改变，内部回声不均匀，可见散在点状强回声，后方回声稍衰减，局部浅筋膜浅深层回声中断；其旁约11点钟距乳头约24MM处可见一低回声结节，大小约8MM×5MM，边界尚清，形态欠规则，前后径&gt;左右径，内部回声欠均匀，后方回声稍衰减，COOPER'S韧带部分受侵；右乳12点钟乳头约37MM另可见一低回声灶，大小约24MM×20MM×17MM，呈浅分叶状，边界尚清，内部回声不均，可见点状强回声，局部浅筋膜浅深层显示模糊，与上述较大病灶界限欠清。左乳内可见2个低回声结节，大小分别约：6MM×5MM(12点钟方向距乳头约9MM处)，7MM×5MM(5点钟方向距乳头约6MM处)，呈浅分叶状，边界清，似可见包膜样回声，局部浅筋膜浅深层连续；余腺组织尚均质，呈细蜂窝状较强回声。左侧乳腺导管未见扩张。CDFI：右乳11-2点钟病灶内可见少许点条状血流信号，可测及动脉频谱，VP8CM/S，RI0.84；左乳结节内未见明确血流信号。右侧腋窝可见多个淋巴结，均位于腋下组，大小约25MM×13MM，边界清，形态不规则，皮质不规则增厚，较厚处约10MM，皮髓质界限清，淋巴门存在。腋中组及腋上组淋巴结未探及。CDFI：上述淋巴结内可探及丰富血流信号。左侧腋窝可见一个淋巴结回声，位于腋下组，大小约11MM×5MM，边界清，椭圆形，皮髓质分界清，淋巴结门存在。CDFI：上述淋巴结内未见明确异常血流信号。</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -5666,7 +5666,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>左乳癌术后9年复查,与2011-11-4片对比:左侧乳腺术后缺失,左前胸壁呈术后改变,局部未见明显软组织肿块。右侧乳腺大小、形态未见明显异常,未见异常密度灶及异常强化灶。双侧腋窝见小淋巴结,最大约为约为5MM×7MM,较前未见明显变化。双侧内乳区未见明显肿大淋巴结。右肺上叶、中叶见少许斑片影,边缘模糊,双肺余叶纹理清晰,未见明确结节灶。气管及支气管分支通畅。右下气管旁、主动脉弓旁、隆突下、右肺门、右中下肺叶间见多个淋巴结,最大约为14MM×18MM,密度尚均匀,较前稍增大。右侧胸腔见少量积液,左侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏形态未见异常,各叶比例在正常范围以内,其外形轮廓光整,密度不均匀。肝S5见一低密度灶,大小约24MM×24MM,边界不清,增强扫描病变边缘轻度强化。肝内胆管未见异常,其内未见结石。胆囊大小未见异常,其内未见结石。胆总管未见扩张,其内未见结石。肝门区结构清晰,肝静脉、门静脉未见异常。脾大小、形态未见异常,密度均匀。胰腺大小、形态未见异常,密度均匀。双肾、双肾上腺大小、形态未见异常,密度均匀。膈脚后、腹腔干、腹主动脉旁未见肿大淋巴结。扫描层次中多个胸椎、腰椎椎体及附件、肋骨、胸骨、左侧肩胛骨及右侧肱骨见结节状骨质致密,部分骨皮质边缘欠光整,较前未见明显变化。左乳癌术后9年复查,与2011-11-4片对比:左乳癌术后改变,局部未见明显复发征象。肝S5低密度灶,考虑转移瘤。多个胸椎、腰椎椎体及附件、肋骨、胸骨、左侧肩胛骨及右侧肱骨骨转移瘤,较前未见明显变化。右肺上叶、中叶斑片影,较前未见明显变化。纵隔、右肺门、右中下肺叶间淋巴结,较前稍增大。双侧腋窝小淋巴结。右侧胸腔少量积液。</t>
+          <t>左乳癌术后9年复查，与2011-11-4片对比：左侧乳腺术后缺失，左前胸壁呈术后改变，局部未见明显软组织肿块。右侧乳腺大小、形态未见明显异常，未见异常密度灶及异常强化灶。双侧腋窝见小淋巴结，最大约为约为5MM×7MM，较前未见明显变化。双侧内乳区未见明显肿大淋巴结。右肺上叶、中叶见少许斑片影，边缘模糊，双肺余叶纹理清晰，未见明确结节灶。气管及支气管分支通畅。右下气管旁、主动脉弓旁、隆突下、右肺门、右中下肺叶间见多个淋巴结，最大约为14MM×18MM，密度尚均匀，较前稍增大。右侧胸腔见少量积液，左侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝S5见一低密度灶，大小约24MM×24MM，边界不清，增强扫描病变边缘轻度强化。肝内胆管未见异常，其内未见结石。胆囊大小未见异常，其内未见结石。胆总管未见扩张，其内未见结石。肝门区结构清晰，肝静脉、门静脉未见异常。脾大小、形态未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。双肾、双肾上腺大小、形态未见异常，密度均匀。膈脚后、腹腔干、腹主动脉旁未见肿大淋巴结。扫描层次中多个胸椎、腰椎椎体及附件、肋骨、胸骨、左侧肩胛骨及右侧肱骨见结节状骨质致密，部分骨皮质边缘欠光整，较前未见明显变化。左乳癌术后9年复查，与2011-11-4片对比：左乳癌术后改变，局部未见明显复发征象。肝S5低密度灶，考虑转移瘤。多个胸椎、腰椎椎体及附件、肋骨、胸骨、左侧肩胛骨及右侧肱骨骨转移瘤，较前未见明显变化。右肺上叶、中叶斑片影，较前未见明显变化。纵隔、右肺门、右中下肺叶间淋巴结，较前稍增大。双侧腋窝小淋巴结。右侧胸腔少量积液。</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -5683,7 +5683,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>1.左肺上叶占位,结合临床,左肺癌并考虑侵及邻近胸膜;纵隔淋巴结肿大,考虑转移;左肺门小淋巴结2.右肺局限性气肿3.肺动脉显影不良,建议观察并结合临床左肺上叶见一截面约4.2CM×4.8CM不规则软组织肿块,边缘分叶、毛糙,与邻近胸膜关系密切,其内见斑点状钙化灶,增强后呈轻中度强化。右肺胸膜下见少许泡状过度透光区。双侧胸膜轻度增厚。纵隔左上肺动脉旁见一短径约1.0CM肿大淋巴。左肺门见短径不足0.5CM小淋巴结。肺动脉显影延迟,局部显影不良。</t>
+          <t>1.左肺上叶占位，结合临床，左肺癌并考虑侵及邻近胸膜；纵隔淋巴结肿大，考虑转移；左肺门小淋巴结2.右肺局限性气肿3.肺动脉显影不良，建议观察并结合临床左肺上叶见一截面约4.2CM×4.8CM不规则软组织肿块，边缘分叶、毛糙，与邻近胸膜关系密切，其内见斑点状钙化灶，增强后呈轻中度强化。右肺胸膜下见少许泡状过度透光区。双侧胸膜轻度增厚。纵隔左上肺动脉旁见一短径约1.0CM肿大淋巴。左肺门见短径不足0.5CM小淋巴结。肺动脉显影延迟，局部显影不良。</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -5705,7 +5705,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>乙状结肠癌综合治疗后,与2013-5-20片比较:双肺多发转移瘤,病灶数目及大小较前变化不大。右下肺叶片块灶,炎症?不排除不典型转移瘤,建议抗炎后复查。肝脏多发转移瘤,较前未见明显变化。纵隔、右侧心缘、腹膜后淋巴结,较前未见明显变化。腹盆腔肿物,考虑种植转移,较前明显增大。腹盆腔见少量积液,较前增多。脾肿大。乙状结肠癌综合治疗后,与2013-5-20片比较:双肺纹理清晰,双肺可见多发结节,直径约2MM~10MM,边界清楚,大部分病灶中心可见小空洞,实性成分较前缩小,病灶数目及大小较前变化不大。右下肺叶见一不规则形片块灶,大小约50MM×39MM,轮廓不光整,密度欠均匀,肺纹理轻度纠集,气管及支气管分支通畅。主动脉旁、隆突下、右侧心缘见数个淋巴结,最大者约10MM×21MM,增强后见明显强化,较前未见明显变化。双侧胸腔未见积液。双侧胸膜未见增厚、粘连。肝脏形态不正常,肝内可见多发结节状、团块状病灶,部分融合,最大者长径为65MM,部分呈轻度强化,部分呈环形强化,较前未见明显变化。肝内胆管未见异常,其内未见结石影,胆囊大小未见异常,其内未见结石影,胆总管未见扩张,其内未见结石影。肝门区未见异常。门静脉未见异常。脾增大,密度均匀。胰腺大小、形态未见异常,密度均匀。双肾所见未见异常。双肾上腺所见未见异常。腹腔干、腹主动脉旁见多个淋巴结,最大位于腹腔干左旁,大小约13MM×19MM,较前变化不大。腹腔见少量积液,较前增大。腹盆腔见膀胱前上方一巨大软组织灶,病灶大小约为224MM×124MM,病灶边界清,呈囊实性,实性部分见轻度强化,病灶与膀胱顶壁及肠系膜分界欠清,较前增大。膀胱充盈良好,境界清楚。子宫、子宫颈大小、形态未见异常。双侧附件区未见明显异常。盆腔见少量积液。扫描所见骨质未见破坏征象。</t>
+          <t>乙状结肠癌综合治疗后，与2013-5-20片比较：双肺多发转移瘤，病灶数目及大小较前变化不大。右下肺叶片块灶，炎症?不排除不典型转移瘤，建议抗炎后复查。肝脏多发转移瘤，较前未见明显变化。纵隔、右侧心缘、腹膜后淋巴结，较前未见明显变化。腹盆腔肿物，考虑种植转移，较前明显增大。腹盆腔见少量积液，较前增多。脾肿大。乙状结肠癌综合治疗后，与2013-5-20片比较：双肺纹理清晰，双肺可见多发结节，直径约2MM~10MM，边界清楚，大部分病灶中心可见小空洞，实性成分较前缩小，病灶数目及大小较前变化不大。右下肺叶见一不规则形片块灶，大小约50MM×39MM，轮廓不光整，密度欠均匀，肺纹理轻度纠集，气管及支气管分支通畅。主动脉旁、隆突下、右侧心缘见数个淋巴结，最大者约10MM×21MM，增强后见明显强化，较前未见明显变化。双侧胸腔未见积液。双侧胸膜未见增厚、粘连。肝脏形态不正常，肝内可见多发结节状、团块状病灶，部分融合，最大者长径为65MM，部分呈轻度强化，部分呈环形强化，较前未见明显变化。肝内胆管未见异常，其内未见结石影，胆囊大小未见异常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉未见异常。脾增大，密度均匀。胰腺大小、形态未见异常，密度均匀。双肾所见未见异常。双肾上腺所见未见异常。腹腔干、腹主动脉旁见多个淋巴结，最大位于腹腔干左旁，大小约13MM×19MM，较前变化不大。腹腔见少量积液，较前增大。腹盆腔见膀胱前上方一巨大软组织灶，病灶大小约为224MM×124MM，病灶边界清，呈囊实性，实性部分见轻度强化，病灶与膀胱顶壁及肠系膜分界欠清，较前增大。膀胱充盈良好，境界清楚。子宫、子宫颈大小、形态未见异常。双侧附件区未见明显异常。盆腔见少量积液。扫描所见骨质未见破坏征象。</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -5722,7 +5722,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>右侧乳腺9、10点钟,乳头旁均可见一不规则形低回声灶,大小约20MM×11MM和13MM×7MM,肿块边界不清,呈稍高回声毛玻璃状改变,内回声分布不均匀,可见点状钙化点,后方回声衰减,肿块局部的浅筋膜浅层受侵中断,浅筋膜深层尚连续。CDFI:上述病灶内部可见点状血流信号。左侧乳腺各组织结构清晰,腺组织较均质,呈细蜂窝状较强回声,导管未见扩张。右侧腋窝可见多个淋巴结回声,最大位于腋下组约24MM×15MM、腋中组最大约10MM×9MM,腋上组最大约8MM×6MM,边界清,皮髓质分界不清,淋巴结门消失。CDFI:上述淋巴结内未见明确血流信号。左侧腋窝未见明确异常肿大淋巴结。右乳腺实性占位性病变,考虑乳腺癌,病灶较前(2013-08-20)缩小。右侧腋窝淋巴结肿大,考虑转移性淋巴结。左侧乳腺、左侧腋窝未见占位性病变。</t>
+          <t>右侧乳腺9、10点钟，乳头旁均可见一不规则形低回声灶，大小约20MM×11MM和13MM×7MM，肿块边界不清，呈稍高回声毛玻璃状改变，内回声分布不均匀，可见点状钙化点，后方回声衰减，肿块局部的浅筋膜浅层受侵中断，浅筋膜深层尚连续。CDFI：上述病灶内部可见点状血流信号。左侧乳腺各组织结构清晰，腺组织较均质，呈细蜂窝状较强回声，导管未见扩张。右侧腋窝可见多个淋巴结回声，最大位于腋下组约24MM×15MM、腋中组最大约10MM×9MM，腋上组最大约8MM×6MM，边界清，皮髓质分界不清，淋巴结门消失。CDFI：上述淋巴结内未见明确血流信号。左侧腋窝未见明确异常肿大淋巴结。右乳腺实性占位性病变，考虑乳腺癌，病灶较前(2013-08-20)缩小。右侧腋窝淋巴结肿大，考虑转移性淋巴结。左侧乳腺、左侧腋窝未见占位性病变。</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -5744,7 +5744,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>乳腺癌术后多发骨转移化疗后复查,与2014-02-10片对比:左乳腺术后缺失,右乳未见明确异常。双肺见多个类圆形或不规则病灶,所有病灶大小基本同前,未见新发病灶,最大者约24MM×17MM,病灶边界欠光整,密度欠均匀,未见毛刺征,增强扫描轻度强化。双上肺见片状、大片状密度增高影,内见多发囊状透亮影,并见散在钙化,边欠清,大致同前。双胸膜无增厚、粘连。双侧胸腔未见积液。左锁骨上窝、左腋窝、左侧上气管旁、主动脉旁见多个肿大淋巴结,大致同前,最大者位于左侧锁骨上窝,大小约29MM×20MM,内可见液化坏死区及钙化点。双肺门未见肿大淋巴结。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,肝内见多发稍低密度灶,边缘模糊,最大者大小约11MM×9MM,边界欠清晰,动脉期呈轻度强化,门脉期及延迟期强化程度减低,大致同前。肝内胆管未见扩张,胆囊大小正常,胆总管轻度扩张,其内均未见结石影。肝门区正常。门静脉所见正常。脾大小正常,密度均匀。胰腺体尾部见类圆形低密度影,大小约22MM×21MM,边界欠清,增强扫描见不均匀轻度强化。双肾皮质见多个小类圆形低密度影,增强扫描未见强化。双肾上腺所见正常。膈脚后、腹膜后未见肿大淋巴结。左侧大脑额叶见点状钙化影,余双侧大脑、小脑、脑干未见异常密度影。各脑室及脑池大小、形态未见异常。大脑中线结构未见移位,未见占位性病变。双眼球后未见占位性病变。扫描范围内所见双侧上颌窦、筛窦、蝶窦充气良好,骨壁完整。双侧额骨、顶骨、右侧枕骨、斜坡见多处密度增高灶。双侧肱骨、左侧肩胛骨、多个胸椎、腰椎、双侧多根肋骨、胸骨、左髂骨见骨质破坏。右侧第3前肋周围见软组织肿块影,大小为39MM×19MM,边界欠清晰,增强扫描不均匀强化,大致同前。乳腺癌术后多发骨转移化疗后复查,与2014-02-10片对比:左乳腺术后缺失,右乳未见明确异常。双肺转移瘤,大致同前,未见新发病灶。双上肺纤维钙化灶。左锁骨上、纵隔淋巴结,大致同前。肝内多发病灶,大致同前。胰腺体尾部类圆形病灶,考虑转移瘤。双肾皮质小囊肿。脑转移瘤治疗后,左侧大脑额叶见点状钙化影。颅骨、双侧肱骨、左侧肩胛骨、胸骨、胸椎、腰椎、双侧肋骨、左侧髂骨多发骨转移瘤。</t>
+          <t>乳腺癌术后多发骨转移化疗后复查，与2014-02-10片对比：左乳腺术后缺失，右乳未见明确异常。双肺见多个类圆形或不规则病灶，所有病灶大小基本同前，未见新发病灶，最大者约24MM×17MM，病灶边界欠光整，密度欠均匀，未见毛刺征，增强扫描轻度强化。双上肺见片状、大片状密度增高影，内见多发囊状透亮影，并见散在钙化，边欠清，大致同前。双胸膜无增厚、粘连。双侧胸腔未见积液。左锁骨上窝、左腋窝、左侧上气管旁、主动脉旁见多个肿大淋巴结，大致同前，最大者位于左侧锁骨上窝，大小约29MM×20MM，内可见液化坏死区及钙化点。双肺门未见肿大淋巴结。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内见多发稍低密度灶，边缘模糊，最大者大小约11MM×9MM，边界欠清晰，动脉期呈轻度强化，门脉期及延迟期强化程度减低，大致同前。肝内胆管未见扩张，胆囊大小正常，胆总管轻度扩张，其内均未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺体尾部见类圆形低密度影，大小约22MM×21MM，边界欠清，增强扫描见不均匀轻度强化。双肾皮质见多个小类圆形低密度影，增强扫描未见强化。双肾上腺所见正常。膈脚后、腹膜后未见肿大淋巴结。左侧大脑额叶见点状钙化影，余双侧大脑、小脑、脑干未见异常密度影。各脑室及脑池大小、形态未见异常。大脑中线结构未见移位，未见占位性病变。双眼球后未见占位性病变。扫描范围内所见双侧上颌窦、筛窦、蝶窦充气良好，骨壁完整。双侧额骨、顶骨、右侧枕骨、斜坡见多处密度增高灶。双侧肱骨、左侧肩胛骨、多个胸椎、腰椎、双侧多根肋骨、胸骨、左髂骨见骨质破坏。右侧第3前肋周围见软组织肿块影，大小为39MM×19MM，边界欠清晰，增强扫描不均匀强化，大致同前。乳腺癌术后多发骨转移化疗后复查，与2014-02-10片对比：左乳腺术后缺失，右乳未见明确异常。双肺转移瘤，大致同前，未见新发病灶。双上肺纤维钙化灶。左锁骨上、纵隔淋巴结，大致同前。肝内多发病灶，大致同前。胰腺体尾部类圆形病灶，考虑转移瘤。双肾皮质小囊肿。脑转移瘤治疗后，左侧大脑额叶见点状钙化影。颅骨、双侧肱骨、左侧肩胛骨、胸骨、胸椎、腰椎、双侧肋骨、左侧髂骨多发骨转移瘤。</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -5761,7 +5761,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>左下肺癌化疗后:1、左肺门高代谢占位,与左肺门及纵隔7区增大淋巴结分界不清,符合肺癌表现,病变仍有活性。纵隔3P、4L/R、7区及左侧肺门多发淋巴结转移,左右肺动脉主干受挤压并狭窄。双肺上叶散在微小结节,纵隔5、8区小淋巴结,未见高代谢,建议随访。心包积液。2、左肺下叶胸膜下小结节,伴轻度代谢,倾向炎性,建议对比老片或定期复查。双肺气肿、肺大泡、左肺下叶及右肺中叶索条、右肺上叶钙化结节、双侧胸膜轻度增厚伴钙化。3、甲状腺右叶稍低密度结节,未见高代谢,倾向良性,请结合B超。4、骨髓代谢弥漫性增高,首先考虑骨髓反应性增殖,随访。空腹6小时以上,静脉注射显像剂,平静休息60MMIN后行胸部PET及CT断层显像,PET图像经衰减校正及重建后,将PET及CT图像行多平面、多幅显示:左下肺癌化疗后:左肺下叶外基底段胸膜下见一不规则小结节,大小约1.2CM×0.8CM,边缘见短索条牵拉邻近胸膜,伴轻度摄取,最大SUV1.45。左肺门见不规则放射性浓聚占位灶,与左肺门及纵隔7区增大浓聚淋巴结分界不清,与左肺门大血管关系密切,较大层面约2.9CM×2.4CM,最大SUV约11.77。双肺上叶另见散在微小结节,未见高摄取,右肺上叶胸膜下见一钙化结节。左肺下叶及右肺中叶另见高密度索条,未见明确高摄取。双肺另见多发无壁透亮区,部分融合。双侧胸膜轻度增厚伴钙化,胸水征阴性。纵隔3P、4L/R、7区及左侧肺门淋巴结肿大,部分融合,挤压左右肺动脉主干并致狭窄,纵隔7区融合淋巴结较大层面约4.9CM×4.3CM,均伴放射性浓聚,最大SUV约10.86-13.31。纵隔5、8区另见少许小淋巴结,较大者约1.2CM×0.4CM,均未见明确高摄取。心肌显影,心包见少量积液。甲状腺两叶不大,右叶后侧实质内见一稍低密度结节,约1.1CM×0.9CM,未见明确高摄取,左叶腺实质内未见异常放射性增高灶。双锁骨上区未见明显异常淋巴结浓聚。胃充盈不良,胃壁显影如常。扫及肝脏、胆囊、胰腺、脾脏、双肾及双侧肾上腺未见异常占位及放射性浓聚灶。扫及上腹腹腔内及腹膜后未见明显肿大或浓聚淋巴结。扫及上腹未见腹水。骨髓放射性分布弥漫性增高。</t>
+          <t>左下肺癌化疗后：1、左肺门高代谢占位，与左肺门及纵隔7区增大淋巴结分界不清，符合肺癌表现，病变仍有活性。纵隔3P、4L/R、7区及左侧肺门多发淋巴结转移，左右肺动脉主干受挤压并狭窄。双肺上叶散在微小结节，纵隔5、8区小淋巴结，未见高代谢，建议随访。心包积液。2、左肺下叶胸膜下小结节，伴轻度代谢，倾向炎性，建议对比老片或定期复查。双肺气肿、肺大泡、左肺下叶及右肺中叶索条、右肺上叶钙化结节、双侧胸膜轻度增厚伴钙化。3、甲状腺右叶稍低密度结节，未见高代谢，倾向良性，请结合B超。4、骨髓代谢弥漫性增高，首先考虑骨髓反应性增殖，随访。空腹6小时以上，静脉注射显像剂，平静休息60MMIN后行胸部PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：左下肺癌化疗后：左肺下叶外基底段胸膜下见一不规则小结节，大小约1.2CM×0.8CM，边缘见短索条牵拉邻近胸膜，伴轻度摄取，最大SUV1.45。左肺门见不规则放射性浓聚占位灶，与左肺门及纵隔7区增大浓聚淋巴结分界不清，与左肺门大血管关系密切，较大层面约2.9CM×2.4CM，最大SUV约11.77。双肺上叶另见散在微小结节，未见高摄取，右肺上叶胸膜下见一钙化结节。左肺下叶及右肺中叶另见高密度索条，未见明确高摄取。双肺另见多发无壁透亮区，部分融合。双侧胸膜轻度增厚伴钙化，胸水征阴性。纵隔3P、4L/R、7区及左侧肺门淋巴结肿大，部分融合，挤压左右肺动脉主干并致狭窄，纵隔7区融合淋巴结较大层面约4.9CM×4.3CM，均伴放射性浓聚，最大SUV约10.86-13.31。纵隔5、8区另见少许小淋巴结，较大者约1.2CM×0.4CM，均未见明确高摄取。心肌显影，心包见少量积液。甲状腺两叶不大，右叶后侧实质内见一稍低密度结节，约1.1CM×0.9CM，未见明确高摄取，左叶腺实质内未见异常放射性增高灶。双锁骨上区未见明显异常淋巴结浓聚。胃充盈不良，胃壁显影如常。扫及肝脏、胆囊、胰腺、脾脏、双肾及双侧肾上腺未见异常占位及放射性浓聚灶。扫及上腹腹腔内及腹膜后未见明显肿大或浓聚淋巴结。扫及上腹未见腹水。骨髓放射性分布弥漫性增高。</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -5778,7 +5778,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>右肺MT伴阻塞性改变,右肺、右侧胸膜及纵隔、肺门淋巴结多发转移,总体较2017-05-22片进展;右侧胸腔包裹性积液;两肺间质性改变较前相仿;左肺上叶小结节,右心膈角淋巴结肿大,左侧肾上腺占位,较前相仿。右肺门可见不规则团块状软组织密度灶,边缘毛糙,局部支气管变窄,外围见斑片影,与右肺门团块分界不清;右肺见结节灶,最大约1.7CM;两肺胸膜下区见网格状高密度,可见多发小囊形低密度影,左肺上叶小结节(IM13);纵隔内及肺门可见肿大淋巴结;右侧局部胸膜(包括斜裂胸膜)增厚伴结节状改变;右侧胸腔可见积液。右心膈角淋巴结肿大。心包增厚。所及左侧肾上腺区可见团块影,以脂肪密度为主。</t>
+          <t>右肺MT伴阻塞性改变，右肺、右侧胸膜及纵隔、肺门淋巴结多发转移，总体较2017-05-22片进展；右侧胸腔包裹性积液；两肺间质性改变较前相仿；左肺上叶小结节，右心膈角淋巴结肿大，左侧肾上腺占位，较前相仿。右肺门可见不规则团块状软组织密度灶，边缘毛糙，局部支气管变窄，外围见斑片影，与右肺门团块分界不清；右肺见结节灶，最大约1.7CM；两肺胸膜下区见网格状高密度，可见多发小囊形低密度影，左肺上叶小结节(IM13)；纵隔内及肺门可见肿大淋巴结；右侧局部胸膜(包括斜裂胸膜)增厚伴结节状改变；右侧胸腔可见积液。右心膈角淋巴结肿大。心包增厚。所及左侧肾上腺区可见团块影，以脂肪密度为主。</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -5795,7 +5795,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>右肺上叶纵隔旁见一小结节灶,边缘分叶、毛糙,与邻近胸膜可见牵拉,截面积约1.5CM×0.6CM;增强扫描呈不均匀强化。双侧下叶见少许片絮状及条索状密度增高影。右肺门、纵隔内2R、3A、4R、4L及右锁上见多发肿大淋巴结,大者短径约1.5CM,增强呈不均匀强化。右侧腋窝见增大淋巴结,短径约0.8CM。双侧胸膜示轻度增厚。右下肺动脉充盈尚可。扫描野肝实质内见多发低密度灶,边缘模糊,大者直径约2.1CM,呈边缘强化。另于肝实质内见小低密度灶,边界较清,直径不足0.5CM。左侧肩胛骨、双侧多发肋骨、多发胸椎椎体及附件示溶骨性骨质改变,部分骨质周围可见软组织肿块形成,呈不均匀强化。1.结合临床,考虑右肺癌;右肺门及纵隔、右锁上淋巴结转移;较前变化不著;肝转移,较前略好转;骨转移,变化不著2.右侧腋窝淋巴结肿大3.肝小囊肿4.右侧肺动脉栓塞已基本显示不清</t>
+          <t>右肺上叶纵隔旁见一小结节灶，边缘分叶、毛糙，与邻近胸膜可见牵拉，截面积约1.5CM×0.6CM；增强扫描呈不均匀强化。双侧下叶见少许片絮状及条索状密度增高影。右肺门、纵隔内2R、3A、4R、4L及右锁上见多发肿大淋巴结，大者短径约1.5CM，增强呈不均匀强化。右侧腋窝见增大淋巴结，短径约0.8CM。双侧胸膜示轻度增厚。右下肺动脉充盈尚可。扫描野肝实质内见多发低密度灶，边缘模糊，大者直径约2.1CM，呈边缘强化。另于肝实质内见小低密度灶，边界较清，直径不足0.5CM。左侧肩胛骨、双侧多发肋骨、多发胸椎椎体及附件示溶骨性骨质改变，部分骨质周围可见软组织肿块形成，呈不均匀强化。1.结合临床，考虑右肺癌；右肺门及纵隔、右锁上淋巴结转移；较前变化不著；肝转移，较前略好转；骨转移，变化不著2.右侧腋窝淋巴结肿大3.肝小囊肿4.右侧肺动脉栓塞已基本显示不清</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -5817,7 +5817,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>左乳癌术后、左锁骨上窝淋巴结转移术后,与2011-7-20片对比:左侧内乳区、主动脉弓旁淋巴结肿大,较前增多增大。左上肺叶纤维增殖灶。甲状腺右叶病灶,考虑结节性甲状腺肿可能性大。右侧乳腺结节,较前未见明显变化。肝囊肿,肾囊肿。左乳癌术后、左锁骨上窝淋巴结转移术后,与2011-7-20片对比:左侧乳腺缺失,左侧胸壁未见明显结节影。左侧内乳区、双侧最上纵隔组、主动脉弓旁可见数个淋巴结,直径约6~16MM,增强后可见明显强化,较前增大增多。甲状腺右叶增大,内见结节状病灶,大小约为18MM×21MM及16MM×17MM,边界清楚,内见钙化,肿物下缘约平胸骨切迹,局部气管无明显受压变窄,增强后可见明显强化,未见明显变化。右乳可见结节状病灶,大小约6MM×13MM及9MM×9MM,增强后可见较明显强化,与前片对比,未见明显变化。左上肺叶可见斑片状、条索状影,右肺纹理清晰,未见结节影;气管及支气管分枝通畅,未见明显软组织肿物或受压变窄。双侧胸腔未见积液;胸膜未见增厚。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度欠均匀,肝内见多个囊性低密度区,大小约3MM×3MM~48MM×36MM,边界清楚,密度均匀,增强后未见强化,与前片对比,较前未见明显变化;肝内胆管未见扩张,胆囊大小正常,其内未见结石影,胆总管未见扩张。肝门区未见肿大淋巴结;门静脉未见充盈缺损。脾大小正常,密度均匀;胰腺大小、形态正常,密度均匀;双肾大小、形态正常,双肾实质见数个小囊性灶,大小约5MM×5MM~10MM×10MM;双侧肾上腺大小、形态、密度正常;膈脚后、腹主动脉旁未见肿大淋巴结。所见骨质未见明确破坏征象。</t>
+          <t>左乳癌术后、左锁骨上窝淋巴结转移术后，与2011-7-20片对比：左侧内乳区、主动脉弓旁淋巴结肿大，较前增多增大。左上肺叶纤维增殖灶。甲状腺右叶病灶，考虑结节性甲状腺肿可能性大。右侧乳腺结节，较前未见明显变化。肝囊肿，肾囊肿。左乳癌术后、左锁骨上窝淋巴结转移术后，与2011-7-20片对比：左侧乳腺缺失，左侧胸壁未见明显结节影。左侧内乳区、双侧最上纵隔组、主动脉弓旁可见数个淋巴结，直径约6~16MM，增强后可见明显强化，较前增大增多。甲状腺右叶增大，内见结节状病灶，大小约为18MM×21MM及16MM×17MM，边界清楚，内见钙化，肿物下缘约平胸骨切迹，局部气管无明显受压变窄，增强后可见明显强化，未见明显变化。右乳可见结节状病灶，大小约6MM×13MM及9MM×9MM，增强后可见较明显强化，与前片对比，未见明显变化。左上肺叶可见斑片状、条索状影，右肺纹理清晰，未见结节影；气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。双侧胸腔未见积液；胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝内见多个囊性低密度区，大小约3MM×3MM~48MM×36MM，边界清楚，密度均匀，增强后未见强化，与前片对比，较前未见明显变化；肝内胆管未见扩张，胆囊大小正常，其内未见结石影，胆总管未见扩张。肝门区未见肿大淋巴结；门静脉未见充盈缺损。脾大小正常，密度均匀；胰腺大小、形态正常，密度均匀；双肾大小、形态正常，双肾实质见数个小囊性灶，大小约5MM×5MM~10MM×10MM；双侧肾上腺大小、形态、密度正常；膈脚后、腹主动脉旁未见肿大淋巴结。所见骨质未见明确破坏征象。</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -5834,7 +5834,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>1.结合临床,右肺癌治疗后,右肺门及纵隔淋巴结转移,较前2014-10-10好转;双肺转移,较前明显好转2.结合临床,左乳癌治疗后,较前变化不著右肺上叶示一不规则软组织密度结节灶,截面约1.1CM×0.8CM,边缘分叶、毛刺,牵拉邻近胸膜凹陷,增强后呈较显著强化。右肺上叶前段示一混合磨玻璃密度灶,截面约3.6CM×1.7CM,边缘毛刺牵拉邻近胸膜凹陷,内见支气管充气征。右肺中叶近斜裂胸膜处示一软组织结节灶,直径约1.0CM,边缘毛刺,增强后呈较显著强化。另右肺跨斜裂胸膜处可见软组织密度影,形态不规则,牵拉邻近胸膜凹陷,内见支气管充气征。余双肺见多发结节灶,大者直径约0.2CM。左乳见一不规则软组织结节灶,截面约0.7CM×1.0CM,边缘分叶可见少许毛刺,增强后呈轻度强化。纵隔内右上气管旁、气管前腔静脉后、右肺门见多发增大淋巴结,大者短径约0.7CM,部分内可见钙化。</t>
+          <t>1.结合临床，右肺癌治疗后，右肺门及纵隔淋巴结转移，较前2014-10-10好转；双肺转移，较前明显好转2.结合临床，左乳癌治疗后，较前变化不著右肺上叶示一不规则软组织密度结节灶，截面约1.1CM×0.8CM，边缘分叶、毛刺，牵拉邻近胸膜凹陷，增强后呈较显著强化。右肺上叶前段示一混合磨玻璃密度灶，截面约3.6CM×1.7CM，边缘毛刺牵拉邻近胸膜凹陷，内见支气管充气征。右肺中叶近斜裂胸膜处示一软组织结节灶，直径约1.0CM，边缘毛刺，增强后呈较显著强化。另右肺跨斜裂胸膜处可见软组织密度影，形态不规则，牵拉邻近胸膜凹陷，内见支气管充气征。余双肺见多发结节灶，大者直径约0.2CM。左乳见一不规则软组织结节灶，截面约0.7CM×1.0CM，边缘分叶可见少许毛刺，增强后呈轻度强化。纵隔内右上气管旁、气管前腔静脉后、右肺门见多发增大淋巴结，大者短径约0.7CM，部分内可见钙化。</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -5851,7 +5851,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>与2013-05-22前片对比:1.左乳腺癌;双侧腋窝淋巴结转移,较前进展;2.左肺上叶磨玻璃密度影,较前略大;3.右肺粟粒灶,较前相仿。请结合临床随诊。左肺上叶前段可见磨玻璃密度影,最大截面大小约1.1CM×1.05CM。右肺见粟粒影。两肺纹理尚清。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心影增大,大血管壁可见钙化影。所示左侧乳腺可见团块影,最大截面大小约8.91CM×5.42CM,其内密度欠均,邻近左乳皮肤增厚。双侧腋窝淋巴结增大,以左侧为著,较大者径约2.0CM。</t>
+          <t>与2013-05-22前片对比：1.左乳腺癌；双侧腋窝淋巴结转移，较前进展；2.左肺上叶磨玻璃密度影，较前略大；3.右肺粟粒灶，较前相仿。请结合临床随诊。左肺上叶前段可见磨玻璃密度影，最大截面大小约1.1CM×1.05CM。右肺见粟粒影。两肺纹理尚清。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心影增大，大血管壁可见钙化影。所示左侧乳腺可见团块影，最大截面大小约8.91CM×5.42CM，其内密度欠均，邻近左乳皮肤增厚。双侧腋窝淋巴结增大，以左侧为著，较大者径约2.0CM。</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -5873,7 +5873,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>乳腺癌术后:左乳术后缺失,左侧前胸壁皮肤可见结节状增厚,最大结节约7MM×4MM。右乳未见明确异常。右侧胸壁皮下脂肪层下见少量长条形积气影。双侧腋窝、双侧锁骨上窝未见肿大淋巴结。右肺体积缩小,右下肺叶见团片状高密度影,增强扫描呈明显强化。双肺内见散在小结节灶,直径大小约2~7MM不等。右侧胸膜呈结节状增厚,增强扫描明显强化。右侧胸腔见大量积液及包裹性积液。左侧胸膜未见增厚,左侧未见胸腔积液。双侧肺门、右侧上下气管旁、左侧上下气管旁、隆突下见肿大淋巴结,最大者短径约16MM,增强扫描较明显强化。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整。肝S5、8分别见类圆形低密度灶,长径约5MM和3MM,增强扫描未见强化。肝内胆管正常。肝门区和门静脉未见异常。胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。左侧肾上腺结合部及内侧支增粗,似见小结节,大小约12MM×9MM,增强扫描中度强化。双肾所见及右肾上腺未见异常。腹主动脉旁未见肿大淋巴结。右侧肱骨头见类圆形致密灶,其余骨质未见异常。乳腺癌术后:左乳术后改变,左侧前胸壁皮肤结节状增厚,考虑复发。双肺转移瘤,右上肺肺不张。右侧胸膜转移瘤,右侧大量胸腔积液及包裹性积液。双侧肺门、纵隔淋巴结肿大,考虑转移可能。左侧肾上腺结合部及内侧支增粗,似见小结节,转移?建议随诊。肝S5、8小囊肿。右侧肱骨头类圆形致密灶,考虑骨岛。</t>
+          <t>乳腺癌术后：左乳术后缺失，左侧前胸壁皮肤可见结节状增厚，最大结节约7MM×4MM。右乳未见明确异常。右侧胸壁皮下脂肪层下见少量长条形积气影。双侧腋窝、双侧锁骨上窝未见肿大淋巴结。右肺体积缩小，右下肺叶见团片状高密度影，增强扫描呈明显强化。双肺内见散在小结节灶，直径大小约2~7MM不等。右侧胸膜呈结节状增厚，增强扫描明显强化。右侧胸腔见大量积液及包裹性积液。左侧胸膜未见增厚，左侧未见胸腔积液。双侧肺门、右侧上下气管旁、左侧上下气管旁、隆突下见肿大淋巴结，最大者短径约16MM，增强扫描较明显强化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整。肝S5、8分别见类圆形低密度灶，长径约5MM和3MM，增强扫描未见强化。肝内胆管正常。肝门区和门静脉未见异常。胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。左侧肾上腺结合部及内侧支增粗，似见小结节，大小约12MM×9MM，增强扫描中度强化。双肾所见及右肾上腺未见异常。腹主动脉旁未见肿大淋巴结。右侧肱骨头见类圆形致密灶，其余骨质未见异常。乳腺癌术后：左乳术后改变，左侧前胸壁皮肤结节状增厚，考虑复发。双肺转移瘤，右上肺肺不张。右侧胸膜转移瘤，右侧大量胸腔积液及包裹性积液。双侧肺门、纵隔淋巴结肿大，考虑转移可能。左侧肾上腺结合部及内侧支增粗，似见小结节，转移?建议随诊。肝S5、8小囊肿。右侧肱骨头类圆形致密灶，考虑骨岛。</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -5890,7 +5890,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>与2018-6-20胸部CT比较:右肺上叶尖后段分叶状软组织密度结节较前略减小,原约14MM×11MM(IM17),现约12MM×6MM(IM19),轻度强化,其远端片状高密度影较前略缩小。双肺上叶多发粟粒样结节略减少。纵隔、右肺门、锁骨上区多发肿大淋巴结部分同前,较大约18MM×9MM(IM28),部分缩小,原约8MM者,现约5MM(IMA7)。双侧胸膜光滑,未见胸水征象。右侧第4肋、左侧第7、8肋、胸5、7、8及腰1椎体多发骨质破坏灶密度较前明显增高。右肺上叶癌及远端阻塞性炎症减轻。双肺粟粒样结节略减少。纵隔、右肺门、锁骨上区多发淋巴结部分同前,部分缩小。双侧肋骨及胸腰椎转移较前密度增高,考虑好转表现。</t>
+          <t>与2018-6-20胸部CT比较：右肺上叶尖后段分叶状软组织密度结节较前略减小，原约14MM×11MM(IM17)，现约12MM×6MM(IM19)，轻度强化，其远端片状高密度影较前略缩小。双肺上叶多发粟粒样结节略减少。纵隔、右肺门、锁骨上区多发肿大淋巴结部分同前，较大约18MM×9MM(IM28)，部分缩小，原约8MM者，现约5MM(IMA7)。双侧胸膜光滑，未见胸水征象。右侧第4肋、左侧第7、8肋、胸5、7、8及腰1椎体多发骨质破坏灶密度较前明显增高。右肺上叶癌及远端阻塞性炎症减轻。双肺粟粒样结节略减少。纵隔、右肺门、锁骨上区多发淋巴结部分同前，部分缩小。双侧肋骨及胸腰椎转移较前密度增高，考虑好转表现。</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -5912,7 +5912,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>左乳MT综合治疗后:左侧胸壁(4-5前肋间)、左侧胸膜、前纵隔转移;双侧锁骨区淋巴结转移;多处骨转移;双侧胸腔积液;盆腔积液;左腋窝糖代谢增高,转移不除外,请结合临床;左肺下叶钙化灶;左侧附件区生理性改变可能,请结合临床随访;子宫多发肌瘤。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼内肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。右侧上颌窦内粘膜增厚影,考虑为慢性炎症。颈部PET/CT图像示双侧锁骨区见糖代谢异常增高的淋巴结,较大者大小约为9.2MM×6.7MM,最大SUV值为6.3;甲状腺等均未见明显糖代谢异常增高灶。胸部PET/CT图像示左乳MT术后;左侧腋窝局部呈轻度糖代谢异常增高,最大SUV值为2.0;右侧乳腺未见明显占位,右侧腋窝无肿大淋巴结。双侧胸腔积液;左侧胸膜不均匀增厚,伴糖代谢异常增高,最大SUV值为6.1;前纵隔软组织影增厚,伴糖代谢异常增高,最大SUV值为4.8;左侧胸壁4-5前肋间糖代谢异常增高,最大SUV值为3.8;左肺下叶见钙化灶。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强;肠道呈线型生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整,各叶比例匀称,左叶见直径约为7.0MM囊性低密度灶;肝内外胆管无扩张;脾脏不大,密度均,未见明显占位;胆囊、胰、双肾、肾上腺无殊;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET/CT图像示左侧附件区呈糖代谢增高,最大SUV值为4.7;子宫体积增大,见多发等密度突起;膀胱内大量显像剂生理性积聚;肠道呈线型生理性糖代谢增强;双侧腹股沟处未见明显糖代谢异常增强。盆腔和双侧腹股沟无肿大淋巴结;盆腔积液。骨骼PET/CT图像示双侧胸肋多处、胸骨、脊柱多处、骨盆多处、双侧股骨上段见多发糖代谢异常增高灶,最大SUV值为7.9,部分区见骨质密度增高,其中右侧第4前肋骨皮质连续性中断。</t>
+          <t>左乳MT综合治疗后：左侧胸壁(4-5前肋间)、左侧胸膜、前纵隔转移；双侧锁骨区淋巴结转移；多处骨转移；双侧胸腔积液；盆腔积液；左腋窝糖代谢增高，转移不除外，请结合临床；左肺下叶钙化灶；左侧附件区生理性改变可能，请结合临床随访；子宫多发肌瘤。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。右侧上颌窦内粘膜增厚影，考虑为慢性炎症。颈部PET/CT图像示双侧锁骨区见糖代谢异常增高的淋巴结，较大者大小约为9.2MM×6.7MM，最大SUV值为6.3；甲状腺等均未见明显糖代谢异常增高灶。胸部PET/CT图像示左乳MT术后；左侧腋窝局部呈轻度糖代谢异常增高，最大SUV值为2.0；右侧乳腺未见明显占位，右侧腋窝无肿大淋巴结。双侧胸腔积液；左侧胸膜不均匀增厚，伴糖代谢异常增高，最大SUV值为6.1；前纵隔软组织影增厚，伴糖代谢异常增高，最大SUV值为4.8；左侧胸壁4-5前肋间糖代谢异常增高，最大SUV值为3.8；左肺下叶见钙化灶。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，左叶见直径约为7.0MM囊性低密度灶；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；胆囊、胰、双肾、肾上腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET/CT图像示左侧附件区呈糖代谢增高，最大SUV值为4.7；子宫体积增大，见多发等密度突起；膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；双侧腹股沟处未见明显糖代谢异常增强。盆腔和双侧腹股沟无肿大淋巴结；盆腔积液。骨骼PET/CT图像示双侧胸肋多处、胸骨、脊柱多处、骨盆多处、双侧股骨上段见多发糖代谢异常增高灶，最大SUV值为7.9，部分区见骨质密度增高，其中右侧第4前肋骨皮质连续性中断。</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -5929,7 +5929,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>左上肺癌术后放化疗后复查,与2016-05-05CT片对比:左上肺术后缺失,左肺上叶支气管残端见金属影,局部未见软组织影及强化灶。左残肺见斑片状及条索状病变,边界不清,病灶密度不均匀,较前未见明显变化。右肺上叶前段见一点状致密灶,同前相仿。右肺上叶后段见少许斑片状密度增高影,边界不清,密度不均匀,大致同前。右侧斜裂、水平裂各见一小结节,较大者直径约3MM,较前相仿。左肺下叶前内基底段(SE4,IM26)、右肺上叶后段(SE4,IM19)各见一结节,较大者直径约4MM,边界清晰。双侧锁骨上窝、右上气管旁、隆突下及右肺门见数个淋巴结,边界欠清,较大者短径约10MM,增强扫描中度强化,较前相仿。左侧胸膜不均匀明显增厚。双侧胸腔未见积液。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度欠均匀。肝S4见一稍低密度区,大小约为13MM×12MM,边界尚清,密度尚均匀,轻度强化,较前缩小。肝S4、5、8见多个囊性灶,边界清,较大者约10MM×6MM,未见强化,大致同前。肝内外胆管、胆总管及胆囊未见异常。肝门区、门静脉所见正常。胃左、腹腔干周围、腹主动脉旁、肠系膜区见多发淋巴结,边界欠清,部分互相融合,较大者大小约22MM×17MM,增强扫描不均匀轻中度强化,部分淋巴结内见坏死灶,包绕腹腔干及肠系膜上动脉,较前未见明显变化。左侧肾上腺见多发结节,最大者约19MM×15MM,增强扫描呈不均匀强化。双肾及右侧肾上腺未见异常。脾及胰腺大小、形态正常,密度均匀。膀胱充盈良好,境界清楚。精囊大小、形态未见异常,密度均匀,膀胱精囊角存在。前列腺大小、形态未见异常,密度欠均匀,内见多发斑点状致密影。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。左第6后肋骨术后改变;右侧坐骨见一类圆形低密度影,直径约15MM,边界清,未见硬化边;第1、2骶椎右侧块见溶骨性骨质破坏,周围见软组织肿块影,增强扫描呈明显强化,余所见骨质未见明显破坏征象。左上肺癌术后放化疗后复查,与2016-05-05CT片对比:左上肺术后缺失,左残肺条索影及斑片灶,大致同前,考虑放射性肺炎。右肺上叶后段斑片影,考虑炎性改变,大致同前。左肺下叶前内基底段、右肺上叶后段结节,考虑转移瘤可能性大,右上肺叶结节为新增病灶。右侧斜裂、水平裂小结节,较前未见明显变化。左侧胸膜增厚,考虑种植,大致同前。双侧锁骨上、纵隔及右肺门多发淋巴结,较前未见明显变化。肝S4结节,较前缩小,考虑转移瘤。肝囊肿。左侧肾上腺多发转移瘤。腹腔及腹膜后多发淋巴结,部分肿大,考虑转移,较前未见明显变化。右侧坐骨、第1、2骶椎右侧块骨质破坏,考虑转移瘤。</t>
+          <t>左上肺癌术后放化疗后复查，与2016-05-05CT片对比：左上肺术后缺失，左肺上叶支气管残端见金属影，局部未见软组织影及强化灶。左残肺见斑片状及条索状病变，边界不清，病灶密度不均匀，较前未见明显变化。右肺上叶前段见一点状致密灶，同前相仿。右肺上叶后段见少许斑片状密度增高影，边界不清，密度不均匀，大致同前。右侧斜裂、水平裂各见一小结节，较大者直径约3MM，较前相仿。左肺下叶前内基底段(SE4，IM26)、右肺上叶后段(SE4，IM19)各见一结节，较大者直径约4MM，边界清晰。双侧锁骨上窝、右上气管旁、隆突下及右肺门见数个淋巴结，边界欠清，较大者短径约10MM，增强扫描中度强化，较前相仿。左侧胸膜不均匀明显增厚。双侧胸腔未见积液。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。肝S4见一稍低密度区，大小约为13MM×12MM，边界尚清，密度尚均匀，轻度强化，较前缩小。肝S4、5、8见多个囊性灶，边界清，较大者约10MM×6MM，未见强化，大致同前。肝内外胆管、胆总管及胆囊未见异常。肝门区、门静脉所见正常。胃左、腹腔干周围、腹主动脉旁、肠系膜区见多发淋巴结，边界欠清，部分互相融合，较大者大小约22MM×17MM，增强扫描不均匀轻中度强化，部分淋巴结内见坏死灶，包绕腹腔干及肠系膜上动脉，较前未见明显变化。左侧肾上腺见多发结节，最大者约19MM×15MM，增强扫描呈不均匀强化。双肾及右侧肾上腺未见异常。脾及胰腺大小、形态正常，密度均匀。膀胱充盈良好，境界清楚。精囊大小、形态未见异常，密度均匀，膀胱精囊角存在。前列腺大小、形态未见异常，密度欠均匀，内见多发斑点状致密影。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。左第6后肋骨术后改变；右侧坐骨见一类圆形低密度影，直径约15MM，边界清，未见硬化边；第1、2骶椎右侧块见溶骨性骨质破坏，周围见软组织肿块影，增强扫描呈明显强化，余所见骨质未见明显破坏征象。左上肺癌术后放化疗后复查，与2016-05-05CT片对比：左上肺术后缺失，左残肺条索影及斑片灶，大致同前，考虑放射性肺炎。右肺上叶后段斑片影，考虑炎性改变，大致同前。左肺下叶前内基底段、右肺上叶后段结节，考虑转移瘤可能性大，右上肺叶结节为新增病灶。右侧斜裂、水平裂小结节，较前未见明显变化。左侧胸膜增厚，考虑种植，大致同前。双侧锁骨上、纵隔及右肺门多发淋巴结，较前未见明显变化。肝S4结节，较前缩小，考虑转移瘤。肝囊肿。左侧肾上腺多发转移瘤。腹腔及腹膜后多发淋巴结，部分肿大，考虑转移，较前未见明显变化。右侧坐骨、第1、2骶椎右侧块骨质破坏，考虑转移瘤。</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -5946,7 +5946,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑未见明显糖代谢异常。CT平扫示脑实质未见异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶、鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部及锁骨区散在小淋巴结;口咽、喉咽部无占位;甲状腺无肿大,未见明显占位。胸部PET图像示右乳MT术后,右乳缺如,左乳见点状致密影;双肺野、肺门、纵隔、胸壁、腋窝等均未见明显糖代谢异常增高灶。CT平扫所示双肺纹理清晰,左肺上叶透亮度不均匀,左肺下叶胸膜下见囊状透亮影;余肺未见明显异常占位;所示各级支气管腔通畅;纵隔无明显肿大淋巴结,双肺门影不大;双侧胸膜无增厚;双侧胸腔无积液;心脏无明显增大;双侧腋窝无明显肿大淋巴结。腹部PET/CT图像示胃MT根治术后,术区见金属缝线影,吻合口软组织影局部略增厚,伴糖代谢增高,最大SUV值为5.5,延迟1.5小时后最大SUV值为4.5;腹腔干及主动脉周围、左侧后腹膜脂肪间隙模糊、密度增高,内见多发早期及延迟期均无明显糖代谢增高的不规则结节影,较大者大小约16.5MM×10.6MM;左侧输尿管管壁局部粘连增厚,早期及延迟期均无明显糖代谢异常增高;上段输尿管及肾盂扩张,左肾周筋膜增厚;左肾上腺增粗伴糖代谢轻度增高,早期最大SUV值约3.2,延迟1.5小时后降至2.3;肝内见数枚无糖代谢增高的低密度灶,较大者大小约18.8MM×15.4MM;肠道呈线型生理性糖代谢增强;胆囊、胰、脾、右肾上腺、肾及输尿管及大血管处未见明显糖代谢异常增高;腹腔无积液;正中腹壁皮下脂肪层内可见腹腔肠管疝入。盆部PET图像示膀胱内大量放射性生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈,壁光滑无增厚;子宫肌层密度欠均,似见多发结节影,较大者直径约24.9MM;双附件区未见明显占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗示全身骨骼未见明显骨质破坏吸收征象。右乳MT及胃MT综合治疗后:胃吻合口粘膜略增厚伴糖代谢增高,考虑为炎性病变可能,请随访;腹膜后多发无明显糖代谢增高的结节影伴纤维化改变,左肾上腺增粗伴糖代谢轻度增高,均考虑转移不除外;肝多发囊肿;左输尿管粘连,左肾轻度积水;子宫肌层内无明显糖代谢的结节,考虑为良性病变(肌瘤)可能,请结合妇科超声检查;腹壁切口疝或白线疝;左乳小钙化灶。</t>
+          <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑未见明显糖代谢异常。CT平扫示脑实质未见异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶、鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部及锁骨区散在小淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET图像示右乳MT术后，右乳缺如，左乳见点状致密影；双肺野、肺门、纵隔、胸壁、腋窝等均未见明显糖代谢异常增高灶。CT平扫所示双肺纹理清晰，左肺上叶透亮度不均匀，左肺下叶胸膜下见囊状透亮影；余肺未见明显异常占位；所示各级支气管腔通畅；纵隔无明显肿大淋巴结，双肺门影不大；双侧胸膜无增厚；双侧胸腔无积液；心脏无明显增大；双侧腋窝无明显肿大淋巴结。腹部PET/CT图像示胃MT根治术后，术区见金属缝线影，吻合口软组织影局部略增厚，伴糖代谢增高，最大SUV值为5.5，延迟1.5小时后最大SUV值为4.5；腹腔干及主动脉周围、左侧后腹膜脂肪间隙模糊、密度增高，内见多发早期及延迟期均无明显糖代谢增高的不规则结节影，较大者大小约16.5MM×10.6MM；左侧输尿管管壁局部粘连增厚，早期及延迟期均无明显糖代谢异常增高；上段输尿管及肾盂扩张，左肾周筋膜增厚；左肾上腺增粗伴糖代谢轻度增高，早期最大SUV值约3.2，延迟1.5小时后降至2.3；肝内见数枚无糖代谢增高的低密度灶，较大者大小约18.8MM×15.4MM；肠道呈线型生理性糖代谢增强；胆囊、胰、脾、右肾上腺、肾及输尿管及大血管处未见明显糖代谢异常增高；腹腔无积液；正中腹壁皮下脂肪层内可见腹腔肠管疝入。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈，壁光滑无增厚；子宫肌层密度欠均，似见多发结节影，较大者直径约24.9MM；双附件区未见明显占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示全身骨骼未见明显骨质破坏吸收征象。右乳MT及胃MT综合治疗后：胃吻合口粘膜略增厚伴糖代谢增高，考虑为炎性病变可能，请随访；腹膜后多发无明显糖代谢增高的结节影伴纤维化改变，左肾上腺增粗伴糖代谢轻度增高，均考虑转移不除外；肝多发囊肿；左输尿管粘连，左肾轻度积水；子宫肌层内无明显糖代谢的结节，考虑为良性病变(肌瘤)可能，请结合妇科超声检查；腹壁切口疝或白线疝；左乳小钙化灶。</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -5963,7 +5963,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>1.结合临床,考虑右肺癌;右肺门及纵隔、右锁上淋巴结转移;肝转移;骨转移2.右侧腋窝淋巴结肿大3.肝小囊肿4.双肾囊肿5.胰腺小囊肿6.双侧胸膜增厚7.右侧肺动脉栓塞右肺上叶纵隔旁见一小结节灶,边缘分叶、毛糙,与邻近胸膜可见牵拉,截面积约1.5CM×0.6CM;增强扫描呈不均匀强化。双侧下叶见少许片絮状及条索状密度增高影。右肺门、纵隔内2R、3A、4R、4L及右锁上见多发肿大淋巴结,大者短径约1.2CM,增强呈不均匀强化。右侧腋窝见增大淋巴结,短径约0.8CM。双侧胸膜示轻度增厚。右下肺动脉及其分支内可见栓子形成。肝实质内见多发低密度灶,边缘模糊,大者直径约2.3CM,呈边缘强化。另于肝实质内见小低密度灶,边界较清,直径不足0.5CM。胆囊充盈可,壁不厚。双肾见囊性密度灶,边界较清,直径约0.5CM。胰腺内见直径不足0.5CM的小低密度灶,边界清。脾、双侧肾上腺未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。左侧肩胛骨、双侧多发肋骨、多发胸椎椎体及附件示溶骨性骨质改变,部分骨质周围可见软组织肿块形成,呈不均匀强化。</t>
+          <t>1.结合临床，考虑右肺癌；右肺门及纵隔、右锁上淋巴结转移；肝转移；骨转移2.右侧腋窝淋巴结肿大3.肝小囊肿4.双肾囊肿5.胰腺小囊肿6.双侧胸膜增厚7.右侧肺动脉栓塞右肺上叶纵隔旁见一小结节灶，边缘分叶、毛糙，与邻近胸膜可见牵拉，截面积约1.5CM×0.6CM；增强扫描呈不均匀强化。双侧下叶见少许片絮状及条索状密度增高影。右肺门、纵隔内2R、3A、4R、4L及右锁上见多发肿大淋巴结，大者短径约1.2CM，增强呈不均匀强化。右侧腋窝见增大淋巴结，短径约0.8CM。双侧胸膜示轻度增厚。右下肺动脉及其分支内可见栓子形成。肝实质内见多发低密度灶，边缘模糊，大者直径约2.3CM，呈边缘强化。另于肝实质内见小低密度灶，边界较清，直径不足0.5CM。胆囊充盈可，壁不厚。双肾见囊性密度灶，边界较清，直径约0.5CM。胰腺内见直径不足0.5CM的小低密度灶，边界清。脾、双侧肾上腺未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。左侧肩胛骨、双侧多发肋骨、多发胸椎椎体及附件示溶骨性骨质改变，部分骨质周围可见软组织肿块形成，呈不均匀强化。</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -5985,7 +5985,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>右肺下叶见一大小约为7.1CM×7.8CM的软组织结节灶,边缘分叶,与胸膜相连,增强后呈中等强化。余右肺野可见斑片状条索状密度增高影,边缘模糊。右肺门、隆突下、血管前间隙可见多发融合成团的肿大淋巴结,大者短径约2.3CM,向内侵及心包,远端肺野可见斑片状高密度影。右侧胸腔及心包腔内见少量积液。肝实质密度均质,胆囊胰腺脾未见异常。左肾实质内可见一脂肪密度影,直径约0.9CM,边界清,无强化。另左肾可见一囊性密度灶,直径约0.6CM。右肾实质内混杂密度灶,最大截面约1.5CM×1.9CM,可见少部分脂肪密度,增强扫描呈快进快出表现。腹腔及腹膜后未见肿大淋巴结。肠系膜区见一直径约1.9CM的软组织密度灶。右侧颌下及右侧颈动脉鞘区,颏下见肿大淋巴结,大者短径约3.0CM,各咽壁不厚,余双侧颈部未见肿大淋巴结影。腮腺及双侧甲状腺未见异常。T8椎体内局部骨质稀疏。1.结合临床,右肺癌治疗后复发,伴右肺门、纵隔淋巴结转移,并考虑心包受侵;颈部淋巴结转移,较前2016-07-11进展;腹腔转移;右肺炎症,较前变化不著2.右侧胸腔及心包少量积液3.左肾血管平滑肌脂肪瘤,左肾囊肿;右肾占位,考虑血管平滑肌脂肪瘤可能性大,变化不著4.T8椎体局部骨质稀疏,请结合骨扫描</t>
+          <t>右肺下叶见一大小约为7.1CM×7.8CM的软组织结节灶，边缘分叶，与胸膜相连，增强后呈中等强化。余右肺野可见斑片状条索状密度增高影，边缘模糊。右肺门、隆突下、血管前间隙可见多发融合成团的肿大淋巴结，大者短径约2.3CM，向内侵及心包，远端肺野可见斑片状高密度影。右侧胸腔及心包腔内见少量积液。肝实质密度均质，胆囊胰腺脾未见异常。左肾实质内可见一脂肪密度影，直径约0.9CM，边界清，无强化。另左肾可见一囊性密度灶，直径约0.6CM。右肾实质内混杂密度灶，最大截面约1.5CM×1.9CM，可见少部分脂肪密度，增强扫描呈快进快出表现。腹腔及腹膜后未见肿大淋巴结。肠系膜区见一直径约1.9CM的软组织密度灶。右侧颌下及右侧颈动脉鞘区，颏下见肿大淋巴结，大者短径约3.0CM，各咽壁不厚，余双侧颈部未见肿大淋巴结影。腮腺及双侧甲状腺未见异常。T8椎体内局部骨质稀疏。1.结合临床，右肺癌治疗后复发，伴右肺门、纵隔淋巴结转移，并考虑心包受侵；颈部淋巴结转移，较前2016-07-11进展；腹腔转移；右肺炎症，较前变化不著2.右侧胸腔及心包少量积液3.左肾血管平滑肌脂肪瘤，左肾囊肿；右肾占位，考虑血管平滑肌脂肪瘤可能性大，变化不著4.T8椎体局部骨质稀疏，请结合骨扫描</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -6007,7 +6007,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>1.结合临床,鼻咽癌伴外侵,双颈部、锁上、纵隔及右腋窝多发淋巴结转移;双颈部水肿,右侧较著2.右乳皮肤增厚3.甲状腺低密度影,建议观察4.心包积液鼻咽顶后壁增厚,向前堵塞后鼻孔,向上侵及鼻腔、双侧筛窦、上颌窦,双侧额窦内示低密度影,双侧翼腭窝显示可,颅底骨质未见明显破坏征象,增强扫描病变呈较显著强化。双颈部、锁上及纵隔、右腋窝示多发肿大淋巴结,相互融合,大者短径约3.2CM,可见强化。甲状腺内略示低密度影,边缘略模糊。喉及下咽壁不厚。右颈部皮肤增厚,双颈部皮下脂肪间隙密度增高,可见多发高密度条索影。右乳皮肤增厚。心包内示环形液体密度影。</t>
+          <t>1.结合临床，鼻咽癌伴外侵，双颈部、锁上、纵隔及右腋窝多发淋巴结转移；双颈部水肿，右侧较著2.右乳皮肤增厚3.甲状腺低密度影，建议观察4.心包积液鼻咽顶后壁增厚，向前堵塞后鼻孔，向上侵及鼻腔、双侧筛窦、上颌窦，双侧额窦内示低密度影，双侧翼腭窝显示可，颅底骨质未见明显破坏征象，增强扫描病变呈较显著强化。双颈部、锁上及纵隔、右腋窝示多发肿大淋巴结，相互融合，大者短径约3.2CM，可见强化。甲状腺内略示低密度影，边缘略模糊。喉及下咽壁不厚。右颈部皮肤增厚，双颈部皮下脂肪间隙密度增高，可见多发高密度条索影。右乳皮肤增厚。心包内示环形液体密度影。</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -6024,7 +6024,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>直肠与乙状结肠交界处及其下方直肠壁略示增厚,相应节段肠腔略狭窄,其外膜面略示毛糙,肠管周围脂肪间隙尚清晰。前列腺及双侧精囊腺未见明确异常。膀胱充盈可,壁不厚。盆腔内及双侧腹股沟未见明显增大淋巴结。左肺上叶及下叶背段示斑片状密度增高影,其内见充气支气管征。右肺下叶可见斑片状、条片状密度增高影。右肺中叶示小类结节灶。纵隔内见多枚小淋巴结影,部分钙化,双侧胸膜未见增厚,双侧胸腔未见液性密度影。纵隔内2R区示一结节灶,短径约1.4CM。肝右叶实质内示低密度肿块,形态不规则,大者位于上段,截面约1.9CM×1.8CM,边缘模糊,增强后其内示不均质点状强化。胆囊充盈可,壁不厚。胰、脾未见异常。双侧肾上腺形态欠自然,右侧肾上腺体部可见结节灶,短径约1.6CM。双肾密度欠均,局部示片状低密度区。腹膜后未见显著增大淋巴结。鼻咽、口咽、喉形态可,壁不厚。甲状腺右叶示类圆形低密度灶。双颈部未见明确肿大淋巴结。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。骨窗示:胸骨、部分肋骨、多发椎骨及双侧髂骨骨质密度增高。1.结合临床,直肠癌治疗后,较前(2015-3-24)变化不著。2.结合临床,左肺癌治疗后,病变显示不清;左肺炎症,较前变化不著;右肺下叶炎症,较前示明显;右肺小类结节灶,建议观察;肝转移,变化不著;纵隔淋巴结转移,较前增大;双侧肾上腺结节灶,考虑转移,较前增大。3.结合临床,多发骨转移治疗后,变化不著。4.双肾低密度灶,变化不著。5.颅脑CT扫描未见明显异常。6.甲状腺右叶低密度灶。</t>
+          <t>直肠与乙状结肠交界处及其下方直肠壁略示增厚，相应节段肠腔略狭窄，其外膜面略示毛糙，肠管周围脂肪间隙尚清晰。前列腺及双侧精囊腺未见明确异常。膀胱充盈可，壁不厚。盆腔内及双侧腹股沟未见明显增大淋巴结。左肺上叶及下叶背段示斑片状密度增高影，其内见充气支气管征。右肺下叶可见斑片状、条片状密度增高影。右肺中叶示小类结节灶。纵隔内见多枚小淋巴结影，部分钙化，双侧胸膜未见增厚，双侧胸腔未见液性密度影。纵隔内2R区示一结节灶，短径约1.4CM。肝右叶实质内示低密度肿块，形态不规则，大者位于上段，截面约1.9CM×1.8CM，边缘模糊，增强后其内示不均质点状强化。胆囊充盈可，壁不厚。胰、脾未见异常。双侧肾上腺形态欠自然，右侧肾上腺体部可见结节灶，短径约1.6CM。双肾密度欠均，局部示片状低密度区。腹膜后未见显著增大淋巴结。鼻咽、口咽、喉形态可，壁不厚。甲状腺右叶示类圆形低密度灶。双颈部未见明确肿大淋巴结。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。骨窗示：胸骨、部分肋骨、多发椎骨及双侧髂骨骨质密度增高。1.结合临床，直肠癌治疗后，较前(2015-3-24)变化不著。2.结合临床，左肺癌治疗后，病变显示不清；左肺炎症，较前变化不著；右肺下叶炎症，较前示明显；右肺小类结节灶，建议观察；肝转移，变化不著；纵隔淋巴结转移，较前增大；双侧肾上腺结节灶，考虑转移，较前增大。3.结合临床，多发骨转移治疗后，变化不著。4.双肾低密度灶，变化不著。5.颅脑CT扫描未见明显异常。6.甲状腺右叶低密度灶。</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -6041,7 +6041,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>左上肺癌术后化疗后复查,与2017-1-9片对比:左残肺及右肺多发小结节,考虑转移瘤,部分较前稍增大。右中肺及左肺少许纤维增殖灶,较前未见明显变化。纵隔及双肺门多发淋巴结,较前未见明显变化。左颈IV、VB区肿大淋巴结,考虑转移,较前未见明显变化。肝内多发囊肿,较前未见明显变化。右肾囊肿。左肾轴旋转不良。左侧肾上腺增粗,考虑增生可能,同前相仿。甲状腺病灶,考虑结节性甲状腺肿。左上肺癌术后化疗后:左上肺术后缺失,术区支气管残端见致密金属影,局部未见明确结节肿物影。左残肺及右肺见多发小结节,部分边界欠清,大者大小约20MM×12MM,增强扫描可见强化。右中肺内侧段及左残肺少许条索影,边界清。气管及余支气管分支通畅。双上及左下气管旁、隆突下、双肺门见数个淋巴结,部分边界不清,大者短径约10MM,增强后呈明显不均匀强化。左侧胸腔见少量积液,左侧胸膜稍增厚。右侧未见胸腔积液及胸膜增厚。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度不均匀,肝内见数个类圆形低密度区,边界清,最大者位于S5,约为50MM×46MM,未见强化。肝内外胆管、胆囊未见异常。肝门区、门静脉未见异常。脾及胰腺大小、形态未见异常,密度均匀。右肾见数个囊性灶,最大约52MM×46MM,边界清,增强扫描未见强化。左肾轴外翻。左侧肾上腺弥漫性稍增粗,密度均匀。右侧肾上腺未见异常。腹主动脉旁未见肿大淋巴结。双颈结构清晰,各血管充盈良好。甲状腺双叶见多发结节,大者直径6MM,轻度强化。双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。双侧颌下腺、腮腺未见异常。左颈IV、VB区见多发肿大淋巴结,较大短径约16MM,边界欠清,明显强化。所见骨质未见明显破坏征象。</t>
+          <t>左上肺癌术后化疗后复查，与2017-1-9片对比：左残肺及右肺多发小结节，考虑转移瘤，部分较前稍增大。右中肺及左肺少许纤维增殖灶，较前未见明显变化。纵隔及双肺门多发淋巴结，较前未见明显变化。左颈IV、VB区肿大淋巴结，考虑转移，较前未见明显变化。肝内多发囊肿，较前未见明显变化。右肾囊肿。左肾轴旋转不良。左侧肾上腺增粗，考虑增生可能，同前相仿。甲状腺病灶，考虑结节性甲状腺肿。左上肺癌术后化疗后：左上肺术后缺失，术区支气管残端见致密金属影，局部未见明确结节肿物影。左残肺及右肺见多发小结节，部分边界欠清，大者大小约20MM×12MM，增强扫描可见强化。右中肺内侧段及左残肺少许条索影，边界清。气管及余支气管分支通畅。双上及左下气管旁、隆突下、双肺门见数个淋巴结，部分边界不清，大者短径约10MM，增强后呈明显不均匀强化。左侧胸腔见少量积液，左侧胸膜稍增厚。右侧未见胸腔积液及胸膜增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝内见数个类圆形低密度区，边界清，最大者位于S5，约为50MM×46MM，未见强化。肝内外胆管、胆囊未见异常。肝门区、门静脉未见异常。脾及胰腺大小、形态未见异常，密度均匀。右肾见数个囊性灶，最大约52MM×46MM，边界清，增强扫描未见强化。左肾轴外翻。左侧肾上腺弥漫性稍增粗，密度均匀。右侧肾上腺未见异常。腹主动脉旁未见肿大淋巴结。双颈结构清晰，各血管充盈良好。甲状腺双叶见多发结节，大者直径6MM，轻度强化。双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。双侧颌下腺、腮腺未见异常。左颈IV、VB区见多发肿大淋巴结，较大短径约16MM，边界欠清，明显强化。所见骨质未见明显破坏征象。</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -6058,7 +6058,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>左侧附件区见一巨大软组织密度肿块,大小约14.0CM×11.5CM,呈囊实性,实性成分可见强化,右侧附件亦示饱满,呈实性。肿块与子宫分界不清。腹盆腔内见液体密度影。腹膜、大网膜及肠系膜均增厚,并可见多发结节灶。膈脚后、腹腔腹膜后及盆腔内可见多发淋巴结。胆囊内可见结节状钙化灶。左肾见囊性结节灶,边界清。左侧乳腺根治术后,术区胸壁未见增厚及异常强化。左侧腋窝未见肿大淋巴结。右侧乳腺内可见点状钙化灶,边界清。右侧腋窝、双侧内乳、肺门及纵隔内未见肿大淋巴结。左肺野见少许条索影。L4、5椎体内骨质密度增高。1.盆腔占位,考虑卵巢癌并大网膜、肠系膜及腹膜后多发转移;腹腔腹膜后、盆腔及膈脚后淋巴结转移2.左侧乳腺术后改变3.右侧乳腺内钙化灶,考虑良性,请结合钼靶检查4.腹盆腔积液5.左肾囊肿6.胆囊结石7.左肺纤维灶8.部分腰椎椎体骨质密度增高,请结合其他检查</t>
+          <t>左侧附件区见一巨大软组织密度肿块，大小约14.0CM×11.5CM，呈囊实性，实性成分可见强化，右侧附件亦示饱满，呈实性。肿块与子宫分界不清。腹盆腔内见液体密度影。腹膜、大网膜及肠系膜均增厚，并可见多发结节灶。膈脚后、腹腔腹膜后及盆腔内可见多发淋巴结。胆囊内可见结节状钙化灶。左肾见囊性结节灶，边界清。左侧乳腺根治术后，术区胸壁未见增厚及异常强化。左侧腋窝未见肿大淋巴结。右侧乳腺内可见点状钙化灶，边界清。右侧腋窝、双侧内乳、肺门及纵隔内未见肿大淋巴结。左肺野见少许条索影。L4、5椎体内骨质密度增高。1.盆腔占位，考虑卵巢癌并大网膜、肠系膜及腹膜后多发转移；腹腔腹膜后、盆腔及膈脚后淋巴结转移2.左侧乳腺术后改变3.右侧乳腺内钙化灶，考虑良性，请结合钼靶检查4.腹盆腔积液5.左肾囊肿6.胆囊结石7.左肺纤维灶8.部分腰椎椎体骨质密度增高，请结合其他检查</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -6080,7 +6080,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>左肺癌化疗后复查,与前片(2011.1.10)比较:左下肺可见软组织肿块,大小约21MM×22MM,边界不清楚,边缘毛糙,见浅分叶,增强扫描不均匀强化,较前稍缩小。左肺上叶散在斑片状、片状密度增高影,边界不清,内见支气管气象,部分病灶范围较前稍缩小。双肺内见多个结节及类结节影,直径约2MM~5MM,部分边界不清,较前未见明显变化。气管及支气管分支通畅,未见明显软组织肿块或受压变窄。右侧锁骨上、左侧肺门、右下气管旁、隆突下可见数个淋巴结,短径约5MM~11MM,边界欠清,较前未见明显变化。双侧胸腔未见积液,胸膜未见增厚。肝脏形态未见异常,轮廓光整,密度欠均匀,肝左外叶可见一囊性灶,大小约16MM×18MM,边界尚清,边缘光整,密度尚均匀,未见强化,较前未见明显变化。肝内外胆管未见扩张,胆囊内结石。肝门区及门静脉未见异常。脾大小未见异常,密度均匀。胰腺大小、形态未见异常,密度均匀。左肾可见一囊性灶,大小约11MM×12MM,右肾未见异常。双侧肾上腺未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。T4椎体、T11椎体横突可见片状致密影,椎旁未见明显软组织肿物影。左肺癌化疗后,较前片(2011.1.10)比较:左下肺软组织肿块,较前稍缩小。双肺内小结节,考虑转移瘤,较前无明显变化。左肺门、纵隔淋巴结,较前未见明显变化。左肺片状影,部分范围较前缩小,考虑炎症。肝囊肿、肾囊肿。胆结石。T4椎体、T11椎体横突骨质改变,考虑转移可能性大。</t>
+          <t>左肺癌化疗后复查，与前片(2011.1.10)比较：左下肺可见软组织肿块，大小约21MM×22MM，边界不清楚，边缘毛糙，见浅分叶，增强扫描不均匀强化，较前稍缩小。左肺上叶散在斑片状、片状密度增高影，边界不清，内见支气管气象，部分病灶范围较前稍缩小。双肺内见多个结节及类结节影，直径约2MM~5MM，部分边界不清，较前未见明显变化。气管及支气管分支通畅，未见明显软组织肿块或受压变窄。右侧锁骨上、左侧肺门、右下气管旁、隆突下可见数个淋巴结，短径约5MM~11MM，边界欠清，较前未见明显变化。双侧胸腔未见积液，胸膜未见增厚。肝脏形态未见异常，轮廓光整，密度欠均匀，肝左外叶可见一囊性灶，大小约16MM×18MM，边界尚清，边缘光整，密度尚均匀，未见强化，较前未见明显变化。肝内外胆管未见扩张，胆囊内结石。肝门区及门静脉未见异常。脾大小未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。左肾可见一囊性灶，大小约11MM×12MM，右肾未见异常。双侧肾上腺未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。T4椎体、T11椎体横突可见片状致密影，椎旁未见明显软组织肿物影。左肺癌化疗后，较前片(2011.1.10)比较：左下肺软组织肿块，较前稍缩小。双肺内小结节，考虑转移瘤，较前无明显变化。左肺门、纵隔淋巴结，较前未见明显变化。左肺片状影，部分范围较前缩小，考虑炎症。肝囊肿、肾囊肿。胆结石。T4椎体、T11椎体横突骨质改变，考虑转移可能性大。</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -6097,7 +6097,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>右侧乳腺癌化疗后,与2012-3-21比较,右侧乳腺病变较前缩小。右侧腋窝肿大淋巴结,考虑转移,较前缩小好转。胸骨右缘(SE9、IM14)小结节,较前缩小,可疑内乳淋巴结。双侧乳腺增生。右侧乳腺癌化疗后,与2012-3-21比较:右侧腋下肿大淋巴结,大小约6MM×7MM~14MM×15MM,边界不清,轮廓欠光整,增强后强化明显,与前片比较病灶缩小。胸骨右缘(SE9、IM14)见一小结节,大小约4MM×3MM,较前缩小。双侧乳腺大小及形态基本对称,双乳皮肤未见增厚,双侧乳头未见凹陷。右乳内上象限见一结节灶,边界不清,轮廓欠光整,与周围腺体分界不清,范围约13MM×14MM,边缘见毛刺,T1WI低信号,T2WI呈混杂低高信号,增强扫描明显不均匀强化,其时间-信号强度曲线为“速升平台”型,病灶与乳腺后方浅筋膜深、浅层粘连,与胸大肌界限欠清,与前片比较病灶范围缩小。左乳内上象限见一类圆形异常信号区,T1WI及T2WI扫描上均呈无信号,较前未见明显变化。双侧乳腺腺体较致密,增强后呈小结节状、斑片状强化。</t>
+          <t>右侧乳腺癌化疗后，与2012-3-21比较，右侧乳腺病变较前缩小。右侧腋窝肿大淋巴结，考虑转移，较前缩小好转。胸骨右缘(SE9、IM14)小结节，较前缩小，可疑内乳淋巴结。双侧乳腺增生。右侧乳腺癌化疗后，与2012-3-21比较：右侧腋下肿大淋巴结，大小约6MM×7MM~14MM×15MM，边界不清，轮廓欠光整，增强后强化明显，与前片比较病灶缩小。胸骨右缘(SE9、IM14)见一小结节，大小约4MM×3MM，较前缩小。双侧乳腺大小及形态基本对称，双乳皮肤未见增厚，双侧乳头未见凹陷。右乳内上象限见一结节灶，边界不清，轮廓欠光整，与周围腺体分界不清，范围约13MM×14MM，边缘见毛刺，T1WI低信号，T2WI呈混杂低高信号，增强扫描明显不均匀强化，其时间-信号强度曲线为“速升平台”型，病灶与乳腺后方浅筋膜深、浅层粘连，与胸大肌界限欠清，与前片比较病灶范围缩小。左乳内上象限见一类圆形异常信号区，T1WI及T2WI扫描上均呈无信号，较前未见明显变化。双侧乳腺腺体较致密，增强后呈小结节状、斑片状强化。</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -6114,7 +6114,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>1、右肺门区高代谢肿块,伴右上肺阻塞性炎症,符合中心型肺癌。病变侵及右肺门、纵隔2R、4R、7区。双锁骨区、纵隔2R/L、3A、3P、4R/L、7区多发淋巴结转移。右侧胸腔少量积液。2、脑部未见明显异常代谢征象。双上颌窦炎症。椎体前缘轻度骨质增生。空腹6小时以上,静脉注射显像剂,平静休息60MMIN后行全身PET及CT断层显像,PET图像经衰减校正及重建后,将PET及CT图像行多平面、多幅显示:右肺门区见一软组织肿块,包绕右主支气管及右肺上叶支气管并致其狭窄,侵及右肺门、纵隔2R、4R、7区,约8.1CM×7.4CM,放射性分布异常浓聚,最大SUV7.74。右上肺见阻塞性斑片影。左上肺及双下肺见小结节,未见放射性浓聚。右侧叶间胸膜增厚,右侧胸腔少量积液。左侧胸膜无增厚,左侧胸水征阴性。双锁骨区、纵隔2R/L、3A、3P、4R/L、7区见肿大淋巴结,均伴异常浓聚,最大SUV3.4-7.37,最大者位于4R区,约3.1CM×3.1CM,中心部见水样密度。左肺门未见肿大或异常浓聚淋巴结。心肌显影浅淡。大脑形态如常,皮层各叶放射性分布均匀。皮层下各神经核团显影清晰,放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深,白质未见明显低密度影,中线无移位。脑室无扩大,基底节区显示对称。小脑显影如常,两侧小脑对称。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。双上颌窦内见少许软组织影,未见放射性浓聚。甲状腺两叶不大,形态可,腺实质内未见异常放射性增高灶。双颈部未见明显异常淋巴结浓聚。胃充盈好,胃壁显影如常。肝脏形态可,轮廓光整,肝叶比例正常,肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常,密度均匀,胆囊壁无增厚。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常,膀胱壁无增厚。前列腺大小正常,放射性分布大致正常。两侧腹股沟无异常淋巴结显示。视野内轴心骨未见异常放射性浓聚。椎体前缘轻度骨质增生。视野内皮肤及软组织内未见异常放射性摄取。</t>
+          <t>1、右肺门区高代谢肿块，伴右上肺阻塞性炎症，符合中心型肺癌。病变侵及右肺门、纵隔2R、4R、7区。双锁骨区、纵隔2R/L、3A、3P、4R/L、7区多发淋巴结转移。右侧胸腔少量积液。2、脑部未见明显异常代谢征象。双上颌窦炎症。椎体前缘轻度骨质增生。空腹6小时以上，静脉注射显像剂，平静休息60MMIN后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：右肺门区见一软组织肿块，包绕右主支气管及右肺上叶支气管并致其狭窄，侵及右肺门、纵隔2R、4R、7区，约8.1CM×7.4CM，放射性分布异常浓聚，最大SUV7.74。右上肺见阻塞性斑片影。左上肺及双下肺见小结节，未见放射性浓聚。右侧叶间胸膜增厚，右侧胸腔少量积液。左侧胸膜无增厚，左侧胸水征阴性。双锁骨区、纵隔2R/L、3A、3P、4R/L、7区见肿大淋巴结，均伴异常浓聚，最大SUV3.4-7.37，最大者位于4R区，约3.1CM×3.1CM，中心部见水样密度。左肺门未见肿大或异常浓聚淋巴结。心肌显影浅淡。大脑形态如常，皮层各叶放射性分布均匀。皮层下各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，两侧小脑对称。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。双上颌窦内见少许软组织影，未见放射性浓聚。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。双颈部未见明显异常淋巴结浓聚。胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常，膀胱壁无增厚。前列腺大小正常，放射性分布大致正常。两侧腹股沟无异常淋巴结显示。视野内轴心骨未见异常放射性浓聚。椎体前缘轻度骨质增生。视野内皮肤及软组织内未见异常放射性摄取。</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -6136,7 +6136,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>空腹6H以上,静脉注射18F-FDG,静息约60MMIN后行全身PET/CT断层显像+胸部CT增强,影像清晰。右侧顶枕交界处结节放射性分布浓密,SUV约7.4,大小约0.6CM×0.8CM,增强扫描明显强化,周围可见大片低密度水肿影放射性分布稀疏,余双侧脑实质密度、形态正常,放射性分布均匀、对称,诸脑室、脑池、脑沟、脑裂未见异常,中线结构居中。右下肺背段、前底段及外基底段巨大分叶状软组织密度肿块影放射性浓聚,SUV约8.4,最大层面约6.2CM×7.6CM,周边可见毛刺,病灶侵犯右侧肋胸膜及斜裂胸膜,病灶周围斑片影放射性分布略浓密,增强扫描明显不均匀强化。余双肺多发大小部分结节部分放射性分布浓密,SUV约5.7,最大者约1.5CM×3.4CM,部分呈分叶状,可见毛刺。右下肺支气管受压狭窄,气管、余支气管通畅。右侧后肋胸膜局部增厚放射性分布略浓密,SUV约3.4。右侧胸腔少量液性低密度影放射性分布稀疏,CT值约10HU。心脏各壁及纵隔大血管未见明显异常。双侧胸壁未见确切病灶和异常放射性分布。双锁上、左上气管旁、血管前、气管后、左下气管旁、主动脉下、主动脉旁、隆突下、食管旁、左下肺韧带、双肺门及双上肺叶多发淋巴结放射性浓聚,SUV约11.9,最大者约1.5CM×3.2CM,增强扫描明显强化。双侧腋窝多个小淋巴结放射性分布未见异常。鼻咽、口咽及喉咽结构及放射性分布未见明显异常。左侧筛窦结节状高密度影放射性分布未见明显异常,大小约0.8CM×0.9CM,CT值约1146HU,额窦、蝶窦、右侧筛窦及双侧上颌窦结构及放射性分布未见明显异常。甲状腺放射性分布未见异常。双颈多个小淋巴结放射性分布未见异常。肝脏S8点状高密度影放射性缺损,余肝脏形态、结构及放射性分布未见明显异常。肝门结构及放射性分布未见明显异常。肝内、外胆管未见扩张。胆囊、胃及十二指肠放射性分布未见明显异常。脾脏、双肾及肾上腺形态、结构及放射性分布未见异常。胰尾部低密度影放射性分布浓密,SUV约7.7,大小约1.7CM×1.9CM,增强扫描明显不均匀强化。左肾前间隙结节放射性分布浓密,SUV约4.2,大小约1.5CM×1.9CM,内见低密度坏死区,增强扫描环形强化。腹腔未见肿大淋巴结及异常放射性分布。前列腺增大推挤膀胱后壁,大小约CM,内见数个点状小钙化灶放射性缺损。膀胱及肠管等形态、结构及放射性分布未见明显异常。双髂血管旁未见肿大淋巴结及异常放射性分布。双侧腹股沟多个小淋巴结放射性分布未见异常。全身多发动脉壁钙化灶放射性缺损。多个胸腰椎骨赘形成放射性分布未见异常。所见颅骨、余躯干骨、四肢骨放射性分布未见明显异常。右下肺背段、前底段及外基底段病灶代谢活跃,考虑肺癌伴阻塞性肺炎及癌性淋巴管炎,病灶侵犯右侧肋胸膜及斜裂胸膜;双锁上、纵隔、双肺门及双上肺叶多发淋巴结代谢活跃,考虑转移;右侧顶枕交界处结节代谢活跃,右侧后肋胸膜局部增厚代谢活跃,左肾前间隙结节代谢活跃,考虑转移;胰尾病灶代谢活跃,考虑恶性病变,转移?右侧胸腔少量积液。左侧筛窦高密度影代谢未见明显异常,考虑良性病变,真菌性筛窦炎可能。肝脏S8肝内胆管小结石。前列腺增生伴小钙化灶。多个胸腰椎骨质增生。动脉硬化。</t>
+          <t>空腹6H以上，静脉注射18F-FDG，静息约60MMIN后行全身PET/CT断层显像+胸部CT增强，影像清晰。右侧顶枕交界处结节放射性分布浓密，SUV约7.4，大小约0.6CM×0.8CM，增强扫描明显强化，周围可见大片低密度水肿影放射性分布稀疏，余双侧脑实质密度、形态正常，放射性分布均匀、对称，诸脑室、脑池、脑沟、脑裂未见异常，中线结构居中。右下肺背段、前底段及外基底段巨大分叶状软组织密度肿块影放射性浓聚，SUV约8.4，最大层面约6.2CM×7.6CM，周边可见毛刺，病灶侵犯右侧肋胸膜及斜裂胸膜，病灶周围斑片影放射性分布略浓密，增强扫描明显不均匀强化。余双肺多发大小部分结节部分放射性分布浓密，SUV约5.7，最大者约1.5CM×3.4CM，部分呈分叶状，可见毛刺。右下肺支气管受压狭窄，气管、余支气管通畅。右侧后肋胸膜局部增厚放射性分布略浓密，SUV约3.4。右侧胸腔少量液性低密度影放射性分布稀疏，CT值约10HU。心脏各壁及纵隔大血管未见明显异常。双侧胸壁未见确切病灶和异常放射性分布。双锁上、左上气管旁、血管前、气管后、左下气管旁、主动脉下、主动脉旁、隆突下、食管旁、左下肺韧带、双肺门及双上肺叶多发淋巴结放射性浓聚，SUV约11.9，最大者约1.5CM×3.2CM，增强扫描明显强化。双侧腋窝多个小淋巴结放射性分布未见异常。鼻咽、口咽及喉咽结构及放射性分布未见明显异常。左侧筛窦结节状高密度影放射性分布未见明显异常，大小约0.8CM×0.9CM，CT值约1146HU，额窦、蝶窦、右侧筛窦及双侧上颌窦结构及放射性分布未见明显异常。甲状腺放射性分布未见异常。双颈多个小淋巴结放射性分布未见异常。肝脏S8点状高密度影放射性缺损，余肝脏形态、结构及放射性分布未见明显异常。肝门结构及放射性分布未见明显异常。肝内、外胆管未见扩张。胆囊、胃及十二指肠放射性分布未见明显异常。脾脏、双肾及肾上腺形态、结构及放射性分布未见异常。胰尾部低密度影放射性分布浓密，SUV约7.7，大小约1.7CM×1.9CM，增强扫描明显不均匀强化。左肾前间隙结节放射性分布浓密，SUV约4.2，大小约1.5CM×1.9CM，内见低密度坏死区，增强扫描环形强化。腹腔未见肿大淋巴结及异常放射性分布。前列腺增大推挤膀胱后壁，大小约CM，内见数个点状小钙化灶放射性缺损。膀胱及肠管等形态、结构及放射性分布未见明显异常。双髂血管旁未见肿大淋巴结及异常放射性分布。双侧腹股沟多个小淋巴结放射性分布未见异常。全身多发动脉壁钙化灶放射性缺损。多个胸腰椎骨赘形成放射性分布未见异常。所见颅骨、余躯干骨、四肢骨放射性分布未见明显异常。右下肺背段、前底段及外基底段病灶代谢活跃，考虑肺癌伴阻塞性肺炎及癌性淋巴管炎，病灶侵犯右侧肋胸膜及斜裂胸膜；双锁上、纵隔、双肺门及双上肺叶多发淋巴结代谢活跃，考虑转移；右侧顶枕交界处结节代谢活跃，右侧后肋胸膜局部增厚代谢活跃，左肾前间隙结节代谢活跃，考虑转移；胰尾病灶代谢活跃，考虑恶性病变，转移?右侧胸腔少量积液。左侧筛窦高密度影代谢未见明显异常，考虑良性病变，真菌性筛窦炎可能。肝脏S8肝内胆管小结石。前列腺增生伴小钙化灶。多个胸腰椎骨质增生。动脉硬化。</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -6158,7 +6158,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>双侧乳腺MT术后病例:肝脏多发转移;右侧锁骨区及腋窝淋巴结转移;左侧锁骨区稍大淋巴结,请随访;两肺慢性炎性结节,请随访;两肺慢性炎症;左侧胸腔少量积液;脂肪肝;肝脏和右肾囊肿;子宫多发肌瘤伴钙化。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼内肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。鼻窦区未见明显异常。颈部PET/CT图像示右侧锁骨区见2枚大小分别为11.7MM×7.5MM和8.0MM×6.0MM稍大淋巴结,其中较大者呈糖代谢增高,最大SUV值约为2.7;左锁骨区见一大小约为8.0MM×6.0MM稍大淋巴结,未见明显糖代谢异常增高;其余颈部未见明显肿大淋巴结;口咽、喉咽部无殊;甲状腺不大,密度欠均匀,未见明显糖代谢异常增高。胸部PET/CT图像示双侧乳腺MT根治术后,双侧胸壁及腋窝术区软组织影略增厚伴不同程度糖代谢增高,糖代谢最高处位于右侧胸壁术区,最大SUV值约为2.0,考虑为术后改变;右侧腋窝(胸大、小肌间隙)见淋巴结显示,其中一大小约为8.0MM×5.5MM淋巴结呈糖代谢增高,最大SUV值约为3.7;左侧腋窝见不伴糖代谢增高的小淋巴结;纵隔及双侧内乳、双肺门未见明显糖代谢异常增高及肿大淋巴结;左肺上叶斜裂旁、右肺中叶水平裂旁及两肺下叶基底段胸膜下见数枚直径小于4.0MM结节影,均无明显糖代谢异常增高;双肺多发条片条絮影,部分呈糖代谢增高,最大SUV值约为2.2;各级支气管腔通畅;双侧胸膜局部略增厚;左侧胸腔少量积液;心脏无明显增大。腹部PET/CT图像示肝脏左、右叶内见多枚稍低密度灶,早期及延迟1.5小时呈不同程度糖代谢增高,较显著2枚均位于左外叶,大小分别为30.0MM×27.0MM(早期最大SUV值约为10.9,延迟相最大SUV值约为13.5)和11.0MM×10.0MM(早期最大SUV值约为7.1,延迟相最大SUV值约为6.0);肝内另见多枚无糖代谢增高的囊性低密度灶,较大者直径约为10.0MM;其余肝实质普遍密度减低,平均CT值约为45.8HU;肝内外胆管无扩张;右肾见无糖代谢增高的囊性低密度灶,较大者位于上极,直径约为16.4MM;胃壁均匀性轻度糖代谢生理性增强;肠道呈线型生理性糖代谢增强;胆囊、胰、脾、双肾上腺、左肾、双输尿管及腹膜后未见糖代谢异常增高及占位;腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁光滑无增厚;子宫形态不规则,表面多发结节样隆起,较大者位于宫底部,大小约为37.0MM×31.0MM,内见钙化;双附件区未见明显占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗所示诸骨未见明显骨质破坏。</t>
+          <t>双侧乳腺MT术后病例：肝脏多发转移；右侧锁骨区及腋窝淋巴结转移；左侧锁骨区稍大淋巴结，请随访；两肺慢性炎性结节，请随访；两肺慢性炎症；左侧胸腔少量积液；脂肪肝；肝脏和右肾囊肿；子宫多发肌瘤伴钙化。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。鼻窦区未见明显异常。颈部PET/CT图像示右侧锁骨区见2枚大小分别为11.7MM×7.5MM和8.0MM×6.0MM稍大淋巴结，其中较大者呈糖代谢增高，最大SUV值约为2.7；左锁骨区见一大小约为8.0MM×6.0MM稍大淋巴结，未见明显糖代谢异常增高；其余颈部未见明显肿大淋巴结；口咽、喉咽部无殊；甲状腺不大，密度欠均匀，未见明显糖代谢异常增高。胸部PET/CT图像示双侧乳腺MT根治术后，双侧胸壁及腋窝术区软组织影略增厚伴不同程度糖代谢增高，糖代谢最高处位于右侧胸壁术区，最大SUV值约为2.0，考虑为术后改变；右侧腋窝(胸大、小肌间隙)见淋巴结显示，其中一大小约为8.0MM×5.5MM淋巴结呈糖代谢增高，最大SUV值约为3.7；左侧腋窝见不伴糖代谢增高的小淋巴结；纵隔及双侧内乳、双肺门未见明显糖代谢异常增高及肿大淋巴结；左肺上叶斜裂旁、右肺中叶水平裂旁及两肺下叶基底段胸膜下见数枚直径小于4.0MM结节影，均无明显糖代谢异常增高；双肺多发条片条絮影，部分呈糖代谢增高，最大SUV值约为2.2；各级支气管腔通畅；双侧胸膜局部略增厚；左侧胸腔少量积液；心脏无明显增大。腹部PET/CT图像示肝脏左、右叶内见多枚稍低密度灶，早期及延迟1.5小时呈不同程度糖代谢增高，较显著2枚均位于左外叶，大小分别为30.0MM×27.0MM(早期最大SUV值约为10.9，延迟相最大SUV值约为13.5)和11.0MM×10.0MM(早期最大SUV值约为7.1，延迟相最大SUV值约为6.0)；肝内另见多枚无糖代谢增高的囊性低密度灶，较大者直径约为10.0MM；其余肝实质普遍密度减低，平均CT值约为45.8HU；肝内外胆管无扩张；右肾见无糖代谢增高的囊性低密度灶，较大者位于上极，直径约为16.4MM；胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；胆囊、胰、脾、双肾上腺、左肾、双输尿管及腹膜后未见糖代谢异常增高及占位；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁光滑无增厚；子宫形态不规则，表面多发结节样隆起，较大者位于宫底部，大小约为37.0MM×31.0MM，内见钙化；双附件区未见明显占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗所示诸骨未见明显骨质破坏。</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -6175,7 +6175,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>双肺结节,结合临床考虑转移,建议与旧片比较。纵隔肿大淋巴结,考虑转移。左侧胸腔、心包积液。肝脏病变建议结合腹部检查。右乳术后缺如,术区未见复发征象。双肺弥漫多发结节,较大位于右肺上叶,约30MM×19MM(IMA44)。左肺下叶见钙化结节(IMA8)。纵隔2R、4、7、10组见肿大淋巴结,较大者约45MM×22MM(IMA34)。双侧胸膜略厚,左侧见少量胸水。心包积液。胸廓诸骨未见骨质破坏。扫及肝脏见低密度结节(IMA12)。</t>
+          <t>双肺结节，结合临床考虑转移，建议与旧片比较。纵隔肿大淋巴结，考虑转移。左侧胸腔、心包积液。肝脏病变建议结合腹部检查。右乳术后缺如，术区未见复发征象。双肺弥漫多发结节，较大位于右肺上叶，约30MM×19MM(IMA44)。左肺下叶见钙化结节(IMA8)。纵隔2R、4、7、10组见肿大淋巴结，较大者约45MM×22MM(IMA34)。双侧胸膜略厚，左侧见少量胸水。心包积液。胸廓诸骨未见骨质破坏。扫及肝脏见低密度结节(IMA12)。</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -6192,7 +6192,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>右肺癌脑转移化疗后复查:右肺门病灶并阻塞性肺炎,较前相仿;双肺弥漫转移瘤,较前变化不明显;肝S2、S5肝囊肿;肝S7肝内胆管结石或钙化灶;胆囊结石;子宫肌瘤。右肺癌脑转移化疗后复查,与2013-7-15片对比:右上肺肺门区可见不规则软组织影,范围约22MM×23MM,边缘模糊,密度欠均匀,增强后见明显强化,右上肺叶支气管狭窄,远端肺内见不规则斑片影,邻近胸膜增厚,较前大致相仿。双肺可见弥漫分布粟粒状、结节状病灶,直径约1~12MM,最大者位于右下肺后基底段,边缘毛糙,增强后明显强化,较前变化不明显。气管及左侧支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度欠均匀,肝S2、S5可见低密度灶,大小约7MM及3MM,边界清楚,增强后未见强化,肝S7可见结节状致密灶。肝内胆管正常,其内未见结石影,胆囊稍增大,壁增厚,其内充满小结节状结石,胆总管未见扩张,其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。双肾所见正常。双肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁未见明显肿大淋巴结。膀胱充盈良好,境界清楚。子宫增大,其内见类圆形稍低密度影,大小约59MM×49MM,边缘光滑,密度均匀,增强扫描呈稍低密度影。子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。骨盆骨质未见异常。扫描层面内未见明显骨质破坏。</t>
+          <t>右肺癌脑转移化疗后复查：右肺门病灶并阻塞性肺炎，较前相仿；双肺弥漫转移瘤，较前变化不明显；肝S2、S5肝囊肿；肝S7肝内胆管结石或钙化灶；胆囊结石；子宫肌瘤。右肺癌脑转移化疗后复查，与2013-7-15片对比：右上肺肺门区可见不规则软组织影，范围约22MM×23MM，边缘模糊，密度欠均匀，增强后见明显强化，右上肺叶支气管狭窄，远端肺内见不规则斑片影，邻近胸膜增厚，较前大致相仿。双肺可见弥漫分布粟粒状、结节状病灶，直径约1~12MM，最大者位于右下肺后基底段，边缘毛糙，增强后明显强化，较前变化不明显。气管及左侧支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝S2、S5可见低密度灶，大小约7MM及3MM，边界清楚，增强后未见强化，肝S7可见结节状致密灶。肝内胆管正常，其内未见结石影，胆囊稍增大，壁增厚，其内充满小结节状结石，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾所见正常。双肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁未见明显肿大淋巴结。膀胱充盈良好，境界清楚。子宫增大，其内见类圆形稍低密度影，大小约59MM×49MM，边缘光滑，密度均匀，增强扫描呈稍低密度影。子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。骨盆骨质未见异常。扫描层面内未见明显骨质破坏。</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -6209,7 +6209,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>右乳腺癌术后放化疗后,与2014-05-05CT片对比:左乳内上象限结节,较前未见明显变化。双肺多发结节,考虑转移瘤可能性大,较前未见明显变化。肝内多发病变,考虑转移瘤可能性大,较前变化不大。右侧第3后肋、T6左侧椎弓、T7椎体左缘及L2椎体、左侧髂骨骨质改变,考虑转移瘤,较前未见明显变化。左侧肱骨头人工关节置换术后改变。甲状腺双叶病变,考虑结节性甲状腺肿。头颅CT扫描未见明显异常。右乳腺癌术后放化疗后,与2014-05-05CT片对比:右乳术后缺失,局部未见明确肿物,左乳内上象限见一结节样病变,大小约10MM×12MM,边清较清,增强扫描轻度强化,较前未见明显变化。双侧腋窝未见肿大淋巴结。双肺见数个结节样病变,大者约11MM×13MM,边界不清楚,密度不均匀,内见空泡,较前未见明显变化。气管和支气管分支通畅。双肺门和纵隔未见肿大淋巴结,双侧胸腔未见积液,胸膜未见增厚。肝脏形态、大小正常,各叶比例在正常范围内,外形轮廓光整,密度不均匀,肝内见多个低密度区,最大者约13MM×10MM,边界不清,边缘轻度强化,较前变化不明显。肝内外胆管未见扩张。胆囊大小正常,壁光滑,其内未见异常密度灶。脾脏未见增大,密度均匀。胰腺大小、形态、密度未见异常。双肾未见异常,双侧肾上腺未见异常。腹膜后未见明显肿大淋巴结。甲状腺双叶密度不均匀,内见数个稍低密度灶,最大者约7MM×6MM,边界欠清,增强扫描轻度强化,较前无明显变化。膀胱充盈良好,境界清楚。子宫大小、形态未见明显异常,子宫颈大小、形态未见异常。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。左侧股骨头见植入人工关节,周围见较多金属伪影。右侧第3后肋、T6左侧椎弓、T7椎体左缘及L2椎体见片状骨质密度增高灶,边界欠清楚,较前未见明显变化,左侧髂骨见骨质破坏,对比2013-11-4片,较前变化不大。脑实质内未见明确异常密度影及异常强化灶,脑沟、裂、池不宽,脑室对称不大,中线结构无移位,幕下结构未见异常,颅骨未见骨质异常。</t>
+          <t>右乳腺癌术后放化疗后，与2014-05-05CT片对比：左乳内上象限结节，较前未见明显变化。双肺多发结节，考虑转移瘤可能性大，较前未见明显变化。肝内多发病变，考虑转移瘤可能性大，较前变化不大。右侧第3后肋、T6左侧椎弓、T7椎体左缘及L2椎体、左侧髂骨骨质改变，考虑转移瘤，较前未见明显变化。左侧肱骨头人工关节置换术后改变。甲状腺双叶病变，考虑结节性甲状腺肿。头颅CT扫描未见明显异常。右乳腺癌术后放化疗后，与2014-05-05CT片对比：右乳术后缺失，局部未见明确肿物，左乳内上象限见一结节样病变，大小约10MM×12MM，边清较清，增强扫描轻度强化，较前未见明显变化。双侧腋窝未见肿大淋巴结。双肺见数个结节样病变，大者约11MM×13MM，边界不清楚，密度不均匀，内见空泡，较前未见明显变化。气管和支气管分支通畅。双肺门和纵隔未见肿大淋巴结，双侧胸腔未见积液，胸膜未见增厚。肝脏形态、大小正常，各叶比例在正常范围内，外形轮廓光整，密度不均匀，肝内见多个低密度区，最大者约13MM×10MM，边界不清，边缘轻度强化，较前变化不明显。肝内外胆管未见扩张。胆囊大小正常，壁光滑，其内未见异常密度灶。脾脏未见增大，密度均匀。胰腺大小、形态、密度未见异常。双肾未见异常，双侧肾上腺未见异常。腹膜后未见明显肿大淋巴结。甲状腺双叶密度不均匀，内见数个稍低密度灶，最大者约7MM×6MM，边界欠清，增强扫描轻度强化，较前无明显变化。膀胱充盈良好，境界清楚。子宫大小、形态未见明显异常，子宫颈大小、形态未见异常。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。左侧股骨头见植入人工关节，周围见较多金属伪影。右侧第3后肋、T6左侧椎弓、T7椎体左缘及L2椎体见片状骨质密度增高灶，边界欠清楚，较前未见明显变化，左侧髂骨见骨质破坏，对比2013-11-4片，较前变化不大。脑实质内未见明确异常密度影及异常强化灶，脑沟、裂、池不宽，脑室对称不大，中线结构无移位，幕下结构未见异常，颅骨未见骨质异常。</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -6226,7 +6226,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>1.结合临床,肝癌术后介入术后改变,门脉右支栓子形成,肝左叶条状低密度区,考虑门脉栓子,建议观察;双肺转移2.脾大3.盆腔少量积液肝右叶术后,术区结构紊乱,肝左右叶比例失调,门脉右支内见条状低密度灶,边缘模糊,增强后强化不著。另肝左叶内小条状低密度区,边缘模糊,似延门脉分支走形,增强后强化不著。胆囊充盈可,壁不厚。脾体积明显增大。胰腺、双侧肾上腺及双肾未见异常。腹腔及腹膜后未见明显肿大淋巴结。双侧肺野内见多发大小不等结节灶,边缘清晰,大者直径约0.5CM,增强后可见强化。纵隔内未见明显肿大淋巴结。前列腺及双侧精囊腺形态可,密度均匀。膀胱充盈欠佳,壁略厚。盆腔内见少许液性密度影。盆腔内未见明显肿大淋巴结。</t>
+          <t>1.结合临床，肝癌术后介入术后改变，门脉右支栓子形成，肝左叶条状低密度区，考虑门脉栓子，建议观察；双肺转移2.脾大3.盆腔少量积液肝右叶术后，术区结构紊乱，肝左右叶比例失调，门脉右支内见条状低密度灶，边缘模糊，增强后强化不著。另肝左叶内小条状低密度区，边缘模糊，似延门脉分支走形，增强后强化不著。胆囊充盈可，壁不厚。脾体积明显增大。胰腺、双侧肾上腺及双肾未见异常。腹腔及腹膜后未见明显肿大淋巴结。双侧肺野内见多发大小不等结节灶，边缘清晰，大者直径约0.5CM，增强后可见强化。纵隔内未见明显肿大淋巴结。前列腺及双侧精囊腺形态可，密度均匀。膀胱充盈欠佳，壁略厚。盆腔内见少许液性密度影。盆腔内未见明显肿大淋巴结。</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -6243,7 +6243,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>右肺中央型肺癌,侵犯右侧胸膜,右侧少量胸腔积液、心包积液。右肺小叶间隔增厚并多发斑片影和类结节灶,考虑肺癌并淋巴管播散可能性大。右侧锁骨上右侧肺门纵隔肿大淋巴结,考虑转移。左肺上叶小结节状稍高密度灶,可疑转移。双上肺见纤维增殖钙化灶,考虑陈旧性肺结核。肝S6小囊肿。右肾小囊肿。左肾肾盂小结石。右肺中叶、下叶支气管管腔狭窄,肺门区见大片状软组织肿物,范围难测量,侵犯邻近胸膜,增强扫描呈明显不均匀强化。右肺中叶肺不张。右肺小叶间隔增厚,见散在分布斑片影和类结节灶,以右下肺为著。左肺上叶另见一模糊稍高密度灶,大小约6MM×4MM。双上肺见纤维增殖钙化灶。左下肺见粗大长条索灶。右侧锁骨上、右侧肺门、右气管旁、左下气管旁、血管前方、隆突下见明显增大淋巴结,部分融合分界不清,最大者约23MM×15MM,增强扫描强化不均匀。左侧肺门未见明确肿大淋巴结。心包内见液体。右侧胸腔少量积液,左侧胸腔未见积液。左侧胸膜未见增厚。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整。肝S6见小囊肿,直径约2MM,增强扫描未见强化。肝内胆管正常,其内未见结石影,肝门区和门静脉未见异常。胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。左肾肾盂内见小致密影,直径约1MM。右肾见囊性密度灶,大小约31MM×24MM,增强扫描未见强化。左肾所见及双肾上腺未见异常。腹主动脉旁未见肿大淋巴结。所见骨质未见明确破坏征象。</t>
+          <t>右肺中央型肺癌，侵犯右侧胸膜，右侧少量胸腔积液、心包积液。右肺小叶间隔增厚并多发斑片影和类结节灶，考虑肺癌并淋巴管播散可能性大。右侧锁骨上右侧肺门纵隔肿大淋巴结，考虑转移。左肺上叶小结节状稍高密度灶，可疑转移。双上肺见纤维增殖钙化灶，考虑陈旧性肺结核。肝S6小囊肿。右肾小囊肿。左肾肾盂小结石。右肺中叶、下叶支气管管腔狭窄，肺门区见大片状软组织肿物，范围难测量，侵犯邻近胸膜，增强扫描呈明显不均匀强化。右肺中叶肺不张。右肺小叶间隔增厚，见散在分布斑片影和类结节灶，以右下肺为著。左肺上叶另见一模糊稍高密度灶，大小约6MM×4MM。双上肺见纤维增殖钙化灶。左下肺见粗大长条索灶。右侧锁骨上、右侧肺门、右气管旁、左下气管旁、血管前方、隆突下见明显增大淋巴结，部分融合分界不清，最大者约23MM×15MM，增强扫描强化不均匀。左侧肺门未见明确肿大淋巴结。心包内见液体。右侧胸腔少量积液，左侧胸腔未见积液。左侧胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整。肝S6见小囊肿，直径约2MM，增强扫描未见强化。肝内胆管正常，其内未见结石影，肝门区和门静脉未见异常。胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。左肾肾盂内见小致密影，直径约1MM。右肾见囊性密度灶，大小约31MM×24MM，增强扫描未见强化。左肾所见及双肾上腺未见异常。腹主动脉旁未见肿大淋巴结。所见骨质未见明确破坏征象。</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -6260,7 +6260,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>1、右下肺门至右下肺内异常高代谢占位,符合鳞癌表现。右肺下叶胸膜下结节/小结节,伴异常高代谢,考虑恶性(转移?)。右侧胸腔少量积液。双锁骨区、左腋窝区、纵隔及双肺门多发淋巴结转移。左前下腹壁及右臀部肌肉内代谢活跃灶,不除外转移。2、甲状腺右叶异常高代谢小结节,请结合超声除外恶性。左肺稍高密度小结节,不伴代谢,陈旧病变可能,胸CT随访。3、脑部未见明显异常代谢征象。双上颌窦炎。口咽炎性摄取,右咽旁及双颈部反应性淋巴结可能大。双肺支扩、气肿、肺大泡伴间质性改变。肝小囊肿?胆囊术后。副脾。脊柱退变。左髂骨骨岛。空腹6小时以上,静脉注射显像剂,平静休息60MMIN后行全身PET及CT断层显像,PET图像经衰减校正及重建后,将PET及CT图像行多平面、多幅显示:左肺散在少许稍高密度小结节,较大者位于左斜裂胸膜下,约0.8CM×0.6CM(肺窗),均未见明显放射性高摄取。右下肺门至右下肺内见不规则形软组织占位,伴异常放射性浓聚,SUVMAX37.5,较大截面约9.4CM×7.5CM(PET图像)。病变旁右斜裂胸膜下及右肺下叶后基底段胸膜下见软组织结节/小结节,伴异常放射性浓聚,SUVMAX40.7,范围较大者约2.9CM×1.5CM(肺窗)。双肺支扩、气肿、肺大泡。心肌显影。气管居中。胸膜无增厚,右侧胸腔少量积液,左胸水征阴性。左锁骨区、左腋窝区、纵隔2R/L、3A/P、4R/L、7区、8区、9R/L及双肺门见多发肿大淋巴结,伴异常放射性浓聚,SUVMAX40.4,较大者位于纵隔7区,约2.9CM×1.9CM。左前下腹壁及右臀部肌肉内见轻度放射性浓聚灶,SUVMAX3.1。大脑形态如常,皮层各叶放射性分布均匀。皮层下各神经核团显影清晰,放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深,白质未见明显低密度影,中线无移位。脑室无扩大。小脑显影如常,两侧小脑对称。口咽部双侧壁对称性放射性摄取增高,SUVMAX8.6,鼻咽部无异常放射性浓聚。双颌窦粘膜轻度增厚,未见明显放射性高摄取。甲状腺两叶不大,形态可,右叶见异常浓聚小结节,SUVMAX7.7。右咽旁及双颈部见多发轻度浓聚小淋巴结,SUVMAX3.9。胃充盈好,胃壁显影如常。肝脏形态可,轮廓光整,肝叶比例正常,肝实质内放射性分布稍欠均匀。肝内见微小囊性灶,未见放射性浓聚。肝内外胆管无扩张。胆囊术后。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。脾门见多个副脾结节。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见异常浓聚淋巴结。腹水征阴性。膀胱放射性浓聚如常,膀胱壁无增厚。前列腺大小正常,放射性分布大致正常。双腹股沟未见异常浓聚淋巴结视野内轴心骨未见异常放射性浓聚。脊柱退变。左髂骨见高密度结节影,直径约0.9CM,未见明显放射性摄取。</t>
+          <t>1、右下肺门至右下肺内异常高代谢占位，符合鳞癌表现。右肺下叶胸膜下结节/小结节，伴异常高代谢，考虑恶性(转移?)。右侧胸腔少量积液。双锁骨区、左腋窝区、纵隔及双肺门多发淋巴结转移。左前下腹壁及右臀部肌肉内代谢活跃灶，不除外转移。2、甲状腺右叶异常高代谢小结节，请结合超声除外恶性。左肺稍高密度小结节，不伴代谢，陈旧病变可能，胸CT随访。3、脑部未见明显异常代谢征象。双上颌窦炎。口咽炎性摄取，右咽旁及双颈部反应性淋巴结可能大。双肺支扩、气肿、肺大泡伴间质性改变。肝小囊肿?胆囊术后。副脾。脊柱退变。左髂骨骨岛。空腹6小时以上，静脉注射显像剂，平静休息60MMIN后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：左肺散在少许稍高密度小结节，较大者位于左斜裂胸膜下，约0.8CM×0.6CM(肺窗)，均未见明显放射性高摄取。右下肺门至右下肺内见不规则形软组织占位，伴异常放射性浓聚，SUVMAX37.5，较大截面约9.4CM×7.5CM(PET图像)。病变旁右斜裂胸膜下及右肺下叶后基底段胸膜下见软组织结节/小结节，伴异常放射性浓聚，SUVMAX40.7，范围较大者约2.9CM×1.5CM(肺窗)。双肺支扩、气肿、肺大泡。心肌显影。气管居中。胸膜无增厚，右侧胸腔少量积液，左胸水征阴性。左锁骨区、左腋窝区、纵隔2R/L、3A/P、4R/L、7区、8区、9R/L及双肺门见多发肿大淋巴结，伴异常放射性浓聚，SUVMAX40.4，较大者位于纵隔7区，约2.9CM×1.9CM。左前下腹壁及右臀部肌肉内见轻度放射性浓聚灶，SUVMAX3.1。大脑形态如常，皮层各叶放射性分布均匀。皮层下各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大。小脑显影如常，两侧小脑对称。口咽部双侧壁对称性放射性摄取增高，SUVMAX8.6，鼻咽部无异常放射性浓聚。双颌窦粘膜轻度增厚，未见明显放射性高摄取。甲状腺两叶不大，形态可，右叶见异常浓聚小结节，SUVMAX7.7。右咽旁及双颈部见多发轻度浓聚小淋巴结，SUVMAX3.9。胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝实质内放射性分布稍欠均匀。肝内见微小囊性灶，未见放射性浓聚。肝内外胆管无扩张。胆囊术后。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。脾门见多个副脾结节。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见异常浓聚淋巴结。腹水征阴性。膀胱放射性浓聚如常，膀胱壁无增厚。前列腺大小正常，放射性分布大致正常。双腹股沟未见异常浓聚淋巴结视野内轴心骨未见异常放射性浓聚。脊柱退变。左髂骨见高密度结节影，直径约0.9CM，未见明显放射性摄取。</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -6282,7 +6282,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>1.右肺癌伴阻塞性炎症,较前(2015-12-29)片好转;右侧锁骨上区、右肺门、纵隔淋巴结转移,较前部分缩小,部分变化不著;左侧锁骨上淋巴结肿大,较前略缩小2.肝内囊性密度灶,考虑囊肿可能性大,变化不著右肺上叶近肺门区可见小片状软组织密度肿块影,与肺门区肿大淋巴结融合,直径约1.2CM,远端可见少许斑片状密度增高影;增强后病变呈中等强化,上叶支气管狭窄。余双肺野清晰。双侧锁骨上区、右肺门、纵隔内右侧气管食管沟、右上气管旁、气管前腔静脉后、气管隆突下可见肿大淋巴结,大者短径约1.7CM。扫描野内肝内可见多发小囊性密度灶。</t>
+          <t>1.右肺癌伴阻塞性炎症，较前(2015-12-29)片好转；右侧锁骨上区、右肺门、纵隔淋巴结转移，较前部分缩小，部分变化不著；左侧锁骨上淋巴结肿大，较前略缩小2.肝内囊性密度灶，考虑囊肿可能性大，变化不著右肺上叶近肺门区可见小片状软组织密度肿块影，与肺门区肿大淋巴结融合，直径约1.2CM，远端可见少许斑片状密度增高影；增强后病变呈中等强化，上叶支气管狭窄。余双肺野清晰。双侧锁骨上区、右肺门、纵隔内右侧气管食管沟、右上气管旁、气管前腔静脉后、气管隆突下可见肿大淋巴结，大者短径约1.7CM。扫描野内肝内可见多发小囊性密度灶。</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -6304,7 +6304,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>左乳癌伴肝肺转移化疗后,与2014-07-23片对比:左侧乳腺腺体组织较右侧减少,呈术后改变,残存左侧乳腺组织内见不规则形团块状、结节状病灶,部分相互融合,边界不清,密度不均匀,其内见点状钙化影,大者范围约17MM×38MM,增强扫描不均匀明显强化,较前缩小,左侧胸大肌、胸小肌内可见多个强化结节,较大者大小约7MM×10MM,边界不清,较前缩小。病灶与左侧胸壁软组织及邻近皮肤分界不清,左乳皮肤不规则明显增厚,较前减轻,增强扫描不均匀强化;邻近皮下脂肪间隙变窄消失。左侧乳头轻度内陷。右侧乳腺大小、形态未见明显异常,腺体丰富,密度均匀,未见明确占位性病变。左侧锁骨上区、左侧腋窝见数个肿大淋巴结,较大者大小约8MM×10MM,边界不清,包膜不完整,增强扫描明显强化,较前缩小。右侧腋窝见多发小淋巴结,短径在5MM以内,边界清。双肺纹理粗乱,双侧前肋间胸膜、右侧叶间裂胸膜及左上肺舌段可见多个结节影,较大者大小约5MM×5MM,边界欠清,增强扫描可见强化,较前缩小;另右上肺前段、右中肺内侧段多发类结节灶,边界尚清,较前相仿。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。肝S7/8可见一类圆形低密度灶,大小约11MM×9MM,边界尚清,增强扫描呈明显结节状强化。肝S4另见一类圆形稍低密度灶,平扫边界欠清,直径约6MM,增强扫描强化不明显。肝内外胆管、胆总管及胆囊未见异常。肝门区正常。门静脉所见正常。脾及胰腺大小、形态正常,密度均匀。所见层面双肾及双侧肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。脑实质内未见明确异常密度影及异常强化灶,脑沟、裂、池不宽,脑室对称不大,中线结构无移位。扫描层面胸骨体、胸骨柄骨质破坏,形态不规则,局部见软组织影形成;余骨质未见明确破坏征象。左乳癌伴肝肺转移化疗后:左侧乳腺肿物,考虑较前缩小。左侧锁骨上区、左侧腋窝肿大淋巴结,考虑转移,较前缩小。右侧腋窝多发小淋巴结。双侧肋间胸膜、右侧叶间裂胸膜及左上肺舌段多发结节影,考虑转移瘤,较前缩小。右上、中肺多发类结节灶,考虑纤维增殖灶可能性大,较前相仿。肝S7/8低密度灶,考虑血管瘤。肝S4缘稍低密度灶,性质待定,建议随诊。胸骨骨质破坏,考虑转移瘤。颅脑未见明确异常。</t>
+          <t>左乳癌伴肝肺转移化疗后，与2014-07-23片对比：左侧乳腺腺体组织较右侧减少，呈术后改变，残存左侧乳腺组织内见不规则形团块状、结节状病灶，部分相互融合，边界不清，密度不均匀，其内见点状钙化影，大者范围约17MM×38MM，增强扫描不均匀明显强化，较前缩小，左侧胸大肌、胸小肌内可见多个强化结节，较大者大小约7MM×10MM，边界不清，较前缩小。病灶与左侧胸壁软组织及邻近皮肤分界不清，左乳皮肤不规则明显增厚，较前减轻，增强扫描不均匀强化；邻近皮下脂肪间隙变窄消失。左侧乳头轻度内陷。右侧乳腺大小、形态未见明显异常，腺体丰富，密度均匀，未见明确占位性病变。左侧锁骨上区、左侧腋窝见数个肿大淋巴结，较大者大小约8MM×10MM，边界不清，包膜不完整，增强扫描明显强化，较前缩小。右侧腋窝见多发小淋巴结，短径在5MM以内，边界清。双肺纹理粗乱，双侧前肋间胸膜、右侧叶间裂胸膜及左上肺舌段可见多个结节影，较大者大小约5MM×5MM，边界欠清，增强扫描可见强化，较前缩小；另右上肺前段、右中肺内侧段多发类结节灶，边界尚清，较前相仿。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。肝S7/8可见一类圆形低密度灶，大小约11MM×9MM，边界尚清，增强扫描呈明显结节状强化。肝S4另见一类圆形稍低密度灶，平扫边界欠清，直径约6MM，增强扫描强化不明显。肝内外胆管、胆总管及胆囊未见异常。肝门区正常。门静脉所见正常。脾及胰腺大小、形态正常，密度均匀。所见层面双肾及双侧肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。脑实质内未见明确异常密度影及异常强化灶，脑沟、裂、池不宽，脑室对称不大，中线结构无移位。扫描层面胸骨体、胸骨柄骨质破坏，形态不规则，局部见软组织影形成；余骨质未见明确破坏征象。左乳癌伴肝肺转移化疗后：左侧乳腺肿物，考虑较前缩小。左侧锁骨上区、左侧腋窝肿大淋巴结，考虑转移，较前缩小。右侧腋窝多发小淋巴结。双侧肋间胸膜、右侧叶间裂胸膜及左上肺舌段多发结节影，考虑转移瘤，较前缩小。右上、中肺多发类结节灶，考虑纤维增殖灶可能性大，较前相仿。肝S7/8低密度灶，考虑血管瘤。肝S4缘稍低密度灶，性质待定，建议随诊。胸骨骨质破坏，考虑转移瘤。颅脑未见明确异常。</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -6321,7 +6321,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>空腹6小时以上,静脉注射显像剂,平静休息60MMIN后行全身PET及CT断层显像,PET图像经衰减校正及重建后,将PET及CT图像行多平面、多幅显示:左肺门区见一软组织肿物,约4.5CM×2.7CM,伴异常放射性浓聚,最大SUV11.22,致左上肺支气管狭窄,远端肺内见阻塞性实变影及斑片影,不伴或伴轻度放射性摄取,最大SUV3.17。余肺另见多发小结节,最大者位于右下肺基底段,直径约0.7CM,未见明显放射性摄取。胸膜无增厚,胸水征阴性。双颈部、双锁骨上区、左锁骨下区、纵隔4L、5、7区及左肺门区见多发肿大淋巴结,均伴放射性浓聚,最大SUV3.13-5.64,最大者位于7区,约1.9CM×1.2CM。右肾上腺增粗伴放射性浓聚,最大SUV5.25;左肾上腺未见异常放射性浓聚。右10后肋、C2、C6、T1-2、T3、T10、L4、左髋臼见放射性浓聚灶,其中右10后肋、T1-2伴骨质破坏,最大SUV10.97。大脑形态如常,皮层各叶放射性分布均匀。皮层下各神经核团显影清晰,放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深,白质未见明显低密度影,中线无移位。脑室无扩大,基底节区显示对称。小脑显影如常,两侧小脑对称。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。甲状腺两叶不大,形态可,腺实质内未见异常放射性增高灶。两侧乳腺轻度显影,两侧大致对称,乳腺区未见异常浓聚灶。心肌显影清晰。胃充盈好,胃壁显影如常。肝脏形态可,轮廓光整,肝叶比例正常,肝实质内放射性分布稍欠均匀。肝S2、S4见囊性密度灶,较大者约1.3CM,放射性分布稀疏。肝内外胆管无扩张。胆囊大小正常,密度均匀,胆囊壁无增厚。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。脾脏前方见副脾影。两侧肾脏显影可,左肾髓质部见钙化密度灶,右肾实质密度均匀,肾盂、肾盏及输尿管无扩张。腹部可见条索状肠影,结肠显影尤著。腹腔内及腹膜后未见明显肿大或异常浓聚淋巴结。腹水征阴性。膀胱放射性浓聚如常,膀胱壁无增厚。子宫形态、大小尚可,局部无异常放射性浓聚。两侧附件区未见异常放射性摄取。盆腔内及两侧腹股沟无异常淋巴结显示。视野内皮肤及软组织内未见异常放射性摄取。左上肺中心型高代谢占位,伴左上肺阻塞性炎症及不张,符合肺癌表现。双颈部、双锁骨上区、左锁骨下区、纵隔及左肺门淋巴结转移。右肾上腺转移。多发骨转移。双肺多发转移。脑内未见明显异常代谢征象,建议增强MRI。肝囊肿;副脾;左肾可疑结石。</t>
+          <t>空腹6小时以上，静脉注射显像剂，平静休息60MMIN后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：左肺门区见一软组织肿物，约4.5CM×2.7CM，伴异常放射性浓聚，最大SUV11.22，致左上肺支气管狭窄，远端肺内见阻塞性实变影及斑片影，不伴或伴轻度放射性摄取，最大SUV3.17。余肺另见多发小结节，最大者位于右下肺基底段，直径约0.7CM，未见明显放射性摄取。胸膜无增厚，胸水征阴性。双颈部、双锁骨上区、左锁骨下区、纵隔4L、5、7区及左肺门区见多发肿大淋巴结，均伴放射性浓聚，最大SUV3.13-5.64，最大者位于7区，约1.9CM×1.2CM。右肾上腺增粗伴放射性浓聚，最大SUV5.25；左肾上腺未见异常放射性浓聚。右10后肋、C2、C6、T1-2、T3、T10、L4、左髋臼见放射性浓聚灶，其中右10后肋、T1-2伴骨质破坏，最大SUV10.97。大脑形态如常，皮层各叶放射性分布均匀。皮层下各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，两侧小脑对称。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。两侧乳腺轻度显影，两侧大致对称，乳腺区未见异常浓聚灶。心肌显影清晰。胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝实质内放射性分布稍欠均匀。肝S2、S4见囊性密度灶，较大者约1.3CM，放射性分布稀疏。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。脾脏前方见副脾影。两侧肾脏显影可，左肾髓质部见钙化密度灶，右肾实质密度均匀，肾盂、肾盏及输尿管无扩张。腹部可见条索状肠影，结肠显影尤著。腹腔内及腹膜后未见明显肿大或异常浓聚淋巴结。腹水征阴性。膀胱放射性浓聚如常，膀胱壁无增厚。子宫形态、大小尚可，局部无异常放射性浓聚。两侧附件区未见异常放射性摄取。盆腔内及两侧腹股沟无异常淋巴结显示。视野内皮肤及软组织内未见异常放射性摄取。左上肺中心型高代谢占位，伴左上肺阻塞性炎症及不张，符合肺癌表现。双颈部、双锁骨上区、左锁骨下区、纵隔及左肺门淋巴结转移。右肾上腺转移。多发骨转移。双肺多发转移。脑内未见明显异常代谢征象，建议增强MRI。肝囊肿；副脾；左肾可疑结石。</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -6343,7 +6343,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>右侧乳腺癌综合治疗后,对比2014.07.18日片:右侧乳腺未见明确结节及肿物。右前上胸壁肌间隙、右侧腋窝多个结节较前稍缩小。双肺多发小结节,原病灶较前稍增大,部分病灶为新增。肝脏未见明显占位病变。T12、L1椎体及其附件骨质破坏,考虑转移瘤可能性大。右侧乳腺癌综合治疗后,对比2014.07.18日片:右侧乳腺体积稍小,密度尚均匀,未见明确结节及肿物。左侧乳腺大小形态及密度未见异常,未见占位性病变。左侧腋窝及双侧内乳区未见明确肿大淋巴结。右上胸壁肌间隙及右侧腋窝见多个结节,边界清,最大位于右侧腋窝,最大约17MM×13MM,密度尚均匀,较前稍缩小。双侧胸廓对称,双肺纹理清晰,双肺野内见多个小类结节,边界清,最大短径约5MM,与前片对比,原病灶较前稍增大,部分病灶为新增;气管及支气管分支通畅,双侧肺门及纵隔未见肿大淋巴结,双侧未见胸腔积液及胸膜增厚。肝脏形态、各叶比例未见异常,其外形轮廓光整,未见明显异常密度灶。肝内胆管无扩张,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。肝门区未见肿大淋巴结。脾不大,密度均匀。胰腺大小、形态未见异常,密度均匀。所见双侧肾盂未见结石,所见双肾实质未见异常。双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。T12、L1椎体及其附件见不规则骨质破坏区,局部略膨胀,边界模糊,见软组织肿块形成并部分向椎管内突出致椎管狭窄。</t>
+          <t>右侧乳腺癌综合治疗后，对比2014.07.18日片：右侧乳腺未见明确结节及肿物。右前上胸壁肌间隙、右侧腋窝多个结节较前稍缩小。双肺多发小结节，原病灶较前稍增大，部分病灶为新增。肝脏未见明显占位病变。T12、L1椎体及其附件骨质破坏，考虑转移瘤可能性大。右侧乳腺癌综合治疗后，对比2014.07.18日片：右侧乳腺体积稍小，密度尚均匀，未见明确结节及肿物。左侧乳腺大小形态及密度未见异常，未见占位性病变。左侧腋窝及双侧内乳区未见明确肿大淋巴结。右上胸壁肌间隙及右侧腋窝见多个结节，边界清，最大位于右侧腋窝，最大约17MM×13MM，密度尚均匀，较前稍缩小。双侧胸廓对称，双肺纹理清晰，双肺野内见多个小类结节，边界清，最大短径约5MM，与前片对比，原病灶较前稍增大，部分病灶为新增；气管及支气管分支通畅，双侧肺门及纵隔未见肿大淋巴结，双侧未见胸腔积液及胸膜增厚。肝脏形态、各叶比例未见异常，其外形轮廓光整，未见明显异常密度灶。肝内胆管无扩张，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见肿大淋巴结。脾不大，密度均匀。胰腺大小、形态未见异常，密度均匀。所见双侧肾盂未见结石，所见双肾实质未见异常。双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。T12、L1椎体及其附件见不规则骨质破坏区，局部略膨胀，边界模糊，见软组织肿块形成并部分向椎管内突出致椎管狭窄。</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -6360,7 +6360,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>右侧乳腺癌综合治疗后,对比2014.07.18日片:右侧乳腺未见明确结节及肿物。右前上胸壁肌间隙、右侧腋窝多个结节较前稍缩小。双肺多发小结节,原病灶较前稍增大,部分病灶为新增。肝脏未见明显占位病变。T12、L1椎体及其附件骨质破坏,考虑转移瘤可能性大。右侧乳腺癌综合治疗后,对比2014.07.18日片:右侧乳腺体积稍小,密度尚均匀,未见明确结节及肿物。左侧乳腺大小形态及密度未见异常,未见占位性病变。左侧腋窝及双侧内乳区未见明确肿大淋巴结。右上胸壁肌间隙及右侧腋窝见多个结节,边界清,最大位于右侧腋窝,最大约17MM×13MM,密度尚均匀,较前稍缩小。双侧胸廓对称,双肺纹理清晰,双肺野内见多个小类结节,边界清,最大短径约5MM,与前片对比,原病灶较前稍增大,部分病灶为新增;气管及支气管分支通畅,双侧肺门及纵隔未见肿大淋巴结,双侧未见胸腔积液及胸膜增厚。肝脏形态、各叶比例未见异常,其外形轮廓光整,未见明显异常密度灶。肝内胆管无扩张,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。肝门区未见肿大淋巴结。脾不大,密度均匀。胰腺大小、形态未见异常,密度均匀。所见双侧肾盂未见结石,所见双肾实质未见异常。双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。T12、L1椎体及其附件见不规则骨质破坏区,局部略膨胀,边界模糊,见软组织肿块形成并部分向椎管内突出致椎管狭窄。</t>
+          <t>右侧乳腺癌综合治疗后，对比2014.07.18日片：右侧乳腺未见明确结节及肿物。右前上胸壁肌间隙、右侧腋窝多个结节较前稍缩小。双肺多发小结节，原病灶较前稍增大，部分病灶为新增。肝脏未见明显占位病变。T12、L1椎体及其附件骨质破坏，考虑转移瘤可能性大。右侧乳腺癌综合治疗后，对比2014.07.18日片：右侧乳腺体积稍小，密度尚均匀，未见明确结节及肿物。左侧乳腺大小形态及密度未见异常，未见占位性病变。左侧腋窝及双侧内乳区未见明确肿大淋巴结。右上胸壁肌间隙及右侧腋窝见多个结节，边界清，最大位于右侧腋窝，最大约17MM×13MM，密度尚均匀，较前稍缩小。双侧胸廓对称，双肺纹理清晰，双肺野内见多个小类结节，边界清，最大短径约5MM，与前片对比，原病灶较前稍增大，部分病灶为新增；气管及支气管分支通畅，双侧肺门及纵隔未见肿大淋巴结，双侧未见胸腔积液及胸膜增厚。肝脏形态、各叶比例未见异常，其外形轮廓光整，未见明显异常密度灶。肝内胆管无扩张，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见肿大淋巴结。脾不大，密度均匀。胰腺大小、形态未见异常，密度均匀。所见双侧肾盂未见结石，所见双肾实质未见异常。双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。T12、L1椎体及其附件见不规则骨质破坏区，局部略膨胀，边界模糊，见软组织肿块形成并部分向椎管内突出致椎管狭窄。</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -6377,7 +6377,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>右肺下叶占位、双肺结节,考虑肺癌、肺内多发转移可能。纵隔、右肺门、右锁骨上区多发肿大淋巴结,转移。双肺间质病变。右肾上腺结节,转移?请结合腹部检查。左肺上叶见一软组织结节,约26MM×20MM(IM29),分叶状,可见强化。右肺下叶外基底段软组织肿块,约37MM×31MM(IM42),边缘分叶,可见强化。双肺内另见散在小结节影,较大约7MM(IM21)。双肺见散在网格影,右肺上叶胸膜下为著。纵隔2R、4-7组、右肺门、右锁骨上区见多发肿大淋巴结,较大约57MM×42MM(IM30)。双侧胸膜增厚,右侧少量胸水。扫及胸廓诸骨未见明确破坏征象。扫及右侧肾上腺结节(IM57)。</t>
+          <t>右肺下叶占位、双肺结节，考虑肺癌、肺内多发转移可能。纵隔、右肺门、右锁骨上区多发肿大淋巴结，转移。双肺间质病变。右肾上腺结节，转移?请结合腹部检查。左肺上叶见一软组织结节，约26MM×20MM(IM29)，分叶状，可见强化。右肺下叶外基底段软组织肿块，约37MM×31MM(IM42)，边缘分叶，可见强化。双肺内另见散在小结节影，较大约7MM(IM21)。双肺见散在网格影，右肺上叶胸膜下为著。纵隔2R、4-7组、右肺门、右锁骨上区见多发肿大淋巴结，较大约57MM×42MM(IM30)。双侧胸膜增厚，右侧少量胸水。扫及胸廓诸骨未见明确破坏征象。扫及右侧肾上腺结节(IM57)。</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -6399,7 +6399,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>1.考虑鼻咽癌并颈部淋巴结转移,对比2012-04-16片,颈部肿大淋巴结部分缩小,余未见明显改变,请结合临床详查;2.双侧上颌窦及筛窦炎;3.甲状腺改变,首先考虑为结节性甲状腺肿,请结合临床。鼻咽部后部软组织增厚,密度欠均,边缘不规整,可见结节突起影,右侧侧隐窝变浅,右侧鼻咽部饱满,突起结节样增强后明显强化。甲状腺双叶密度欠均,可见小圆形低密度影,大者径约为0.4CM。增强扫描未见强化。双侧上颌窦及筛窦粘膜增厚。双侧颈部可见多发肿大淋巴结影。</t>
+          <t>1.考虑鼻咽癌并颈部淋巴结转移，对比2012-04-16片，颈部肿大淋巴结部分缩小，余未见明显改变，请结合临床详查；2.双侧上颌窦及筛窦炎；3.甲状腺改变，首先考虑为结节性甲状腺肿，请结合临床。鼻咽部后部软组织增厚，密度欠均，边缘不规整，可见结节突起影，右侧侧隐窝变浅，右侧鼻咽部饱满，突起结节样增强后明显强化。甲状腺双叶密度欠均，可见小圆形低密度影，大者径约为0.4CM。增强扫描未见强化。双侧上颌窦及筛窦粘膜增厚。双侧颈部可见多发肿大淋巴结影。</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -6416,7 +6416,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>左乳癌术后、左锁骨上窝淋巴结转移术后,与2011-11-09片对比:左侧乳腺缺失,左侧胸壁未见明显结节影。左侧内乳区、双侧最上纵隔组、主动脉弓旁可见数个淋巴结,最大者约10MM×15MM,增强后可见明显强化,较前未见明显变化。甲状腺右叶增大,内见结节状病灶,大小约为18MM×21MM及16MM×17MM,边界清楚,内见钙化,肿物下缘约平胸骨切迹,局部气管无明显受压变窄,增强后可见明显强化,未见明显变化。右乳可见结节状病灶,大小约6MM×13MM及9MM×9MM,增强后可见较明显强化,与前片对比,未见明显变化。左上肺叶可见斑片状、条索状影,右肺纹理清晰,未见结节影;气管及支气管分枝通畅,未见明显软组织肿物或受压变窄。双侧胸腔未见积液;胸膜未见增厚。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度欠均匀,肝内见多个囊性低密度区,大小约3MM×3MM~48MM×36MM,边界清楚,密度均匀,增强后未见强化,与前片对比,较前未见明显变化;肝内胆管未见扩张,胆囊大小正常,其内未见结石影,胆总管未见扩张。肝门区未见肿大淋巴结;门静脉未见充盈缺损。脾大小正常,密度均匀;胰腺大小、形态正常,密度均匀;双肾大小、形态正常,双肾实质见数个小囊性灶,大小约5MM×5MM~10MM×10MM;双侧肾上腺大小、形态、密度正常;膈脚后、腹主动脉旁未见肿大淋巴结。所见骨质未见明确破坏征象。左乳癌术后、左锁骨上窝淋巴结转移术后,与2011-11-09片对比:左侧内乳区、主动脉弓旁淋巴结较前未见明显变化。左上肺叶纤维增殖灶。甲状腺右叶病灶,考虑结节性甲状腺肿可能性大。右侧乳腺结节,较前未见明显变化。肝囊肿,肾囊肿。</t>
+          <t>左乳癌术后、左锁骨上窝淋巴结转移术后，与2011-11-09片对比：左侧乳腺缺失，左侧胸壁未见明显结节影。左侧内乳区、双侧最上纵隔组、主动脉弓旁可见数个淋巴结，最大者约10MM×15MM，增强后可见明显强化，较前未见明显变化。甲状腺右叶增大，内见结节状病灶，大小约为18MM×21MM及16MM×17MM，边界清楚，内见钙化，肿物下缘约平胸骨切迹，局部气管无明显受压变窄，增强后可见明显强化，未见明显变化。右乳可见结节状病灶，大小约6MM×13MM及9MM×9MM，增强后可见较明显强化，与前片对比，未见明显变化。左上肺叶可见斑片状、条索状影，右肺纹理清晰，未见结节影；气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。双侧胸腔未见积液；胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝内见多个囊性低密度区，大小约3MM×3MM~48MM×36MM，边界清楚，密度均匀，增强后未见强化，与前片对比，较前未见明显变化；肝内胆管未见扩张，胆囊大小正常，其内未见结石影，胆总管未见扩张。肝门区未见肿大淋巴结；门静脉未见充盈缺损。脾大小正常，密度均匀；胰腺大小、形态正常，密度均匀；双肾大小、形态正常，双肾实质见数个小囊性灶，大小约5MM×5MM~10MM×10MM；双侧肾上腺大小、形态、密度正常；膈脚后、腹主动脉旁未见肿大淋巴结。所见骨质未见明确破坏征象。左乳癌术后、左锁骨上窝淋巴结转移术后，与2011-11-09片对比：左侧内乳区、主动脉弓旁淋巴结较前未见明显变化。左上肺叶纤维增殖灶。甲状腺右叶病灶，考虑结节性甲状腺肿可能性大。右侧乳腺结节，较前未见明显变化。肝囊肿，肾囊肿。</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -6433,7 +6433,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>右肺上叶尖段肿块,考虑肺癌并周围阻塞性炎症、肺不张。双肺上叶肺大泡。气管后、右下气管旁、右肺门淋巴结肿大,考虑转移可能性大。肝脏未见明确病变。肝内胆管轻度扩张。右肾囊肿。右肺上叶尖段见一软组织肿块,边界尚清,范围约53MM×45MM,呈分叶状,密度不均匀,内钙化点及小空洞,增强扫描呈不均匀强化,病灶与右上胸膜、纵隔胸膜分界不清,与邻近气管后淋巴结分界不清。右肺上叶(病灶周围)见多发斑片状影,边界模糊,密度不均匀。双肺上叶可见多发囊状透亮影,边界清,内无肺纹理,右肺为著。气管及其余支气管尚通畅。气管后间隙、右下气管旁、右肺门可见散在淋巴结,边界欠清,大者约15MM×21MM,增强后呈不均匀强化。左侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,肝实质密度均匀,未见异常强化表现。肝内胆管轻度扩张。胆囊大小正常,胆总管未见扩张,其内未见结石影。肝门区结构未见异常。门静脉主干及分支未见充盈缺损。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。右肾见一囊性灶,直径约42MM,边界清,未见强化。左肾及双肾上腺未见明确异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。所见骨质结构未见破坏征象。</t>
+          <t>右肺上叶尖段肿块，考虑肺癌并周围阻塞性炎症、肺不张。双肺上叶肺大泡。气管后、右下气管旁、右肺门淋巴结肿大，考虑转移可能性大。肝脏未见明确病变。肝内胆管轻度扩张。右肾囊肿。右肺上叶尖段见一软组织肿块，边界尚清，范围约53MM×45MM，呈分叶状，密度不均匀，内钙化点及小空洞，增强扫描呈不均匀强化，病灶与右上胸膜、纵隔胸膜分界不清，与邻近气管后淋巴结分界不清。右肺上叶(病灶周围)见多发斑片状影，边界模糊，密度不均匀。双肺上叶可见多发囊状透亮影，边界清，内无肺纹理，右肺为著。气管及其余支气管尚通畅。气管后间隙、右下气管旁、右肺门可见散在淋巴结，边界欠清，大者约15MM×21MM，增强后呈不均匀强化。左侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝实质密度均匀，未见异常强化表现。肝内胆管轻度扩张。胆囊大小正常，胆总管未见扩张，其内未见结石影。肝门区结构未见异常。门静脉主干及分支未见充盈缺损。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见一囊性灶，直径约42MM，边界清，未见强化。左肾及双肾上腺未见明确异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。所见骨质结构未见破坏征象。</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -6455,7 +6455,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像(头颈部及上胸部因患者无法配合而未采集PET图像)。下胸部PET/CT图像示右肺下叶背段胸膜下见糖代谢轻度增高的团片影,边缘似见毛刺,大小约为28.8MM×10.5MM,最大SUV值为2.2;两肺散在无糖代谢异常增高的条索影;各级支气管腔通畅;双侧胸膜无增厚;双侧胸腔无积液;心脏无明显增大。腹部PET图像见胃壁均匀性轻度生理性糖代谢增强;肠道呈线型生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整,各叶比例匀称,实质内未见明显占位;肝内外胆管无扩张;脾脏不大,内见小钙化灶;右肾见直径约为11.5MM的低密度灶,右肾另见小致密影;胆囊、胰、左肾、双肾上腺无殊;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈,壁光滑无增厚;双侧精囊腺形态可;双侧膀胱精囊三角对称;前列腺增大,内见钙化灶;盆腔内未见占位;左下腹见小肠及脂肪组织疝入腹股沟管;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET/CT示第7、8胸椎椎体及右侧附件及相邻右侧第8、9后肋骨质破坏,局部软组织肿块形成,侵及邻近椎管内,伴糖代谢异常增高,最大SUV值为11.8,第8胸椎椎管狭窄,脊髓受压;余处骨骼未见糖代谢异常增高及骨质破坏吸收征象。所示颈部及上胸部CT图像未见明显占位病变。第7、8胸椎及邻近右侧第8、9后肋转移性MT可能,第8胸椎水平椎管狭窄、脊髓受压;右肺下叶糖代谢轻度增高的占位,考虑为MT可能,请结合临床;两肺慢性炎症;右肾囊肿,右肾小结石;脾脏钙化灶;左侧斜疝;前列腺增生伴钙化。</t>
+          <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像(头颈部及上胸部因患者无法配合而未采集PET图像)。下胸部PET/CT图像示右肺下叶背段胸膜下见糖代谢轻度增高的团片影，边缘似见毛刺，大小约为28.8MM×10.5MM，最大SUV值为2.2；两肺散在无糖代谢异常增高的条索影；各级支气管腔通畅；双侧胸膜无增厚；双侧胸腔无积液；心脏无明显增大。腹部PET图像见胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内未见明显占位；肝内外胆管无扩张；脾脏不大，内见小钙化灶；右肾见直径约为11.5MM的低密度灶，右肾另见小致密影；胆囊、胰、左肾、双肾上腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈，壁光滑无增厚；双侧精囊腺形态可；双侧膀胱精囊三角对称；前列腺增大，内见钙化灶；盆腔内未见占位；左下腹见小肠及脂肪组织疝入腹股沟管；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT示第7、8胸椎椎体及右侧附件及相邻右侧第8、9后肋骨质破坏，局部软组织肿块形成，侵及邻近椎管内，伴糖代谢异常增高，最大SUV值为11.8，第8胸椎椎管狭窄，脊髓受压；余处骨骼未见糖代谢异常增高及骨质破坏吸收征象。所示颈部及上胸部CT图像未见明显占位病变。第7、8胸椎及邻近右侧第8、9后肋转移性MT可能，第8胸椎水平椎管狭窄、脊髓受压；右肺下叶糖代谢轻度增高的占位，考虑为MT可能，请结合临床；两肺慢性炎症；右肾囊肿，右肾小结石；脾脏钙化灶；左侧斜疝；前列腺增生伴钙化。</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -6477,7 +6477,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>右侧乳腺癌综合治疗后,对比2016-5-25片:右侧乳腺未见明显结节及肿物。右前上胸壁肌间隙、右侧腋窝多发结节,考虑转移瘤,较前相仿。双肺弥漫多发结节灶,考虑转移,部分病灶较前稍增大。右侧内乳区、纵隔及双肺门多发肿大淋巴结,考虑转移,较前相仿。肝脏多发结节,考虑转移,较前增多、部分增大。右肾小结石。多发骨转移瘤,较前增多,部分增大。右侧乳腺癌综合治疗后,对比2016-5-25片:右侧乳腺体积较对侧稍小,未见明显结节及肿物。左侧乳腺大小形态及密度未见异常,未见占位性病变。左侧腋窝及左侧内乳区未见明确肿大淋巴结。右上胸壁肌间隙及右侧腋窝见多个结节,边界欠清,最大位于右侧腋窝,最大者约24MM×17MM,密度尚均匀,较前相仿。双肺内见弥漫多发大小不等结节灶,部分相融合、边界欠清,与邻近胸膜牵拉粘连,较大者大小约34MM×25MM(右肺中叶),部分病灶较前稍增大。气管及支气管分支尚通畅。右侧内乳区、右上下气管旁、主动脉弓旁、隆突下及双肺门见数个肿大淋巴结,大者短径约15MM,边界欠清,较前相仿。双侧未见胸腔积液。双侧胸膜稍增厚、粘连。肝脏各叶比例未见异常,其外形轮廓光整,肝内见多发类圆形结节灶,较大者38MM×36MM,部分融合,边界欠清,密度欠均匀,较前增多、部分增大。肝内胆管无扩张,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。肝门区未见肿大淋巴结。脾、胰腺大小、形态未见异常,密度均匀。右下肾盏见斑点状致密影;左肾及双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。双侧肩胛骨、左侧肱骨头、胸骨、C7、T1~6、T7~12、L1、2椎体及部分附件、多条肋骨见不规则骨质破坏区,部分骨质破坏区局部略膨胀,边界模糊,见软组织肿块形成并部分向椎管内突出致椎管狭窄,与前片对比,病灶较前增多,部分增大。</t>
+          <t>右侧乳腺癌综合治疗后，对比2016-5-25片：右侧乳腺未见明显结节及肿物。右前上胸壁肌间隙、右侧腋窝多发结节，考虑转移瘤，较前相仿。双肺弥漫多发结节灶，考虑转移，部分病灶较前稍增大。右侧内乳区、纵隔及双肺门多发肿大淋巴结，考虑转移，较前相仿。肝脏多发结节，考虑转移，较前增多、部分增大。右肾小结石。多发骨转移瘤，较前增多，部分增大。右侧乳腺癌综合治疗后，对比2016-5-25片：右侧乳腺体积较对侧稍小，未见明显结节及肿物。左侧乳腺大小形态及密度未见异常，未见占位性病变。左侧腋窝及左侧内乳区未见明确肿大淋巴结。右上胸壁肌间隙及右侧腋窝见多个结节，边界欠清，最大位于右侧腋窝，最大者约24MM×17MM，密度尚均匀，较前相仿。双肺内见弥漫多发大小不等结节灶，部分相融合、边界欠清，与邻近胸膜牵拉粘连，较大者大小约34MM×25MM(右肺中叶)，部分病灶较前稍增大。气管及支气管分支尚通畅。右侧内乳区、右上下气管旁、主动脉弓旁、隆突下及双肺门见数个肿大淋巴结，大者短径约15MM，边界欠清，较前相仿。双侧未见胸腔积液。双侧胸膜稍增厚、粘连。肝脏各叶比例未见异常，其外形轮廓光整，肝内见多发类圆形结节灶，较大者38MM×36MM，部分融合，边界欠清，密度欠均匀，较前增多、部分增大。肝内胆管无扩张，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见肿大淋巴结。脾、胰腺大小、形态未见异常，密度均匀。右下肾盏见斑点状致密影；左肾及双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。双侧肩胛骨、左侧肱骨头、胸骨、C7、T1~6、T7~12、L1、2椎体及部分附件、多条肋骨见不规则骨质破坏区，部分骨质破坏区局部略膨胀，边界模糊，见软组织肿块形成并部分向椎管内突出致椎管狭窄，与前片对比，病灶较前增多，部分增大。</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -6494,7 +6494,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>右肺尖示小片状不规则软组织密度影,截面约1.3CM×0.8CM(肺窗),边缘分叶、毛刺,牵拉邻近胸膜凹陷,增强后呈不均匀强化,其内可见小空泡影。双肺野内见多发结节及类结节灶,部分其内可见小空泡影,大者直径约1.5CM。另于右肺野内见多发斑片状及条索状密度增高影,边缘模糊。另右肺近斜裂胸膜处可见片状密度增高影,形态不规则,内见支气管充气征。双侧叶间胸膜示增厚,左侧叶间胸膜及左肺下叶见小类结节灶。左乳外上象限见一不规则软组织结节灶,长径约0.6CM,边缘分叶可见少许毛刺,增强后呈轻度强化。左锁上、纵隔内右上气管旁、气管前腔静脉后、主肺动脉窗区、隆突下、双肺门见多发小或稍大淋巴结,大者短径约0.7CM,部分内可见钙化。1.结合临床,右肺癌治疗后,较前(2016-05-26)基本变化不著;双肺转移较前部分增大,部分变化不著2.结合临床,左乳癌治疗后,较前变化不著3.左锁上、纵隔及肺门小或稍大淋巴结,变化不著4.右肺局限性炎症及纤维炎性变,变化不著;双侧叶间胸膜增厚,均变化不著</t>
+          <t>右肺尖示小片状不规则软组织密度影，截面约1.3CM×0.8CM(肺窗)，边缘分叶、毛刺，牵拉邻近胸膜凹陷，增强后呈不均匀强化，其内可见小空泡影。双肺野内见多发结节及类结节灶，部分其内可见小空泡影，大者直径约1.5CM。另于右肺野内见多发斑片状及条索状密度增高影，边缘模糊。另右肺近斜裂胸膜处可见片状密度增高影，形态不规则，内见支气管充气征。双侧叶间胸膜示增厚，左侧叶间胸膜及左肺下叶见小类结节灶。左乳外上象限见一不规则软组织结节灶，长径约0.6CM，边缘分叶可见少许毛刺，增强后呈轻度强化。左锁上、纵隔内右上气管旁、气管前腔静脉后、主肺动脉窗区、隆突下、双肺门见多发小或稍大淋巴结，大者短径约0.7CM，部分内可见钙化。1.结合临床，右肺癌治疗后，较前(2016-05-26)基本变化不著；双肺转移较前部分增大，部分变化不著2.结合临床，左乳癌治疗后，较前变化不著3.左锁上、纵隔及肺门小或稍大淋巴结，变化不著4.右肺局限性炎症及纤维炎性变，变化不著；双侧叶间胸膜增厚，均变化不著</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -6516,7 +6516,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>右肺尖示小片状不规则软组织密度影,截面约1.3CM×0.8CM(肺窗),边缘分叶、毛刺,牵拉邻近胸膜凹陷,增强后呈不均匀强化,其内可见小空泡影。另于右肺野内见多发斑片状及条索状密度增高影,边缘模糊,并可见少许类结节灶,大者直径约1.1CM。另右肺近斜裂胸膜处可见片状密度增高影,形态不规则,内见支气管充气征。双侧叶间胸膜示增厚,左侧叶间胸膜及左肺下叶见小类结节灶,大者直径约0.5CM。左乳外上象限见一不规则软组织结节灶,长径约0.6CM,边缘分叶可见少许毛刺,增强后呈轻度强化。左锁上、纵隔内右上气管旁、气管前腔静脉后、主肺动脉窗区、隆突下、双肺门见多发小或稍大淋巴结,大者短径约0.7CM,部分内可见钙化。1.结合临床,右肺癌治疗后,较前(2016-3-24)变化不著;双肺转移较前进展2.结合临床,左乳癌治疗后,较前变化不著3.左锁上、纵隔及肺门小或稍大淋巴结,变化不著4.右肺局限性炎症及纤维炎性变;双侧叶间胸膜增厚,均变化不著</t>
+          <t>右肺尖示小片状不规则软组织密度影，截面约1.3CM×0.8CM(肺窗)，边缘分叶、毛刺，牵拉邻近胸膜凹陷，增强后呈不均匀强化，其内可见小空泡影。另于右肺野内见多发斑片状及条索状密度增高影，边缘模糊，并可见少许类结节灶，大者直径约1.1CM。另右肺近斜裂胸膜处可见片状密度增高影，形态不规则，内见支气管充气征。双侧叶间胸膜示增厚，左侧叶间胸膜及左肺下叶见小类结节灶，大者直径约0.5CM。左乳外上象限见一不规则软组织结节灶，长径约0.6CM，边缘分叶可见少许毛刺，增强后呈轻度强化。左锁上、纵隔内右上气管旁、气管前腔静脉后、主肺动脉窗区、隆突下、双肺门见多发小或稍大淋巴结，大者短径约0.7CM，部分内可见钙化。1.结合临床，右肺癌治疗后，较前(2016-3-24)变化不著；双肺转移较前进展2.结合临床，左乳癌治疗后，较前变化不著3.左锁上、纵隔及肺门小或稍大淋巴结，变化不著4.右肺局限性炎症及纤维炎性变；双侧叶间胸膜增厚，均变化不著</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -6538,7 +6538,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>1.结合病史,右肺下叶癌治疗后,较前(2015-2-2)变化不著。2.双肺转移,右侧胸膜转移并右侧胸腔少量积液,右肺癌性淋巴管炎,均变化不著;肝转移,较前示进展;骨转移,部分密度增高,部分略示增大。3.结合临床,右乳癌治疗后,变化不著。4.右腋窝淋巴结稍大,较前缩小;腹腔、腹膜后及左肺门增大淋巴结,部分略示饱满。5.右肺下叶部分不张,局部略示增大;左肺炎症,较前好转。右肺下叶背段见一不规则形软组织结节,截面约1.7CM×2.2CM,边缘毛糙伴毛刺,牵拉邻近胸膜凹陷,远端见索条影及小叶间隔增厚,增强后结节呈显著不均匀强化。双肺见多发结节灶,局部呈粟粒状改变,大者长径约0.5CM。右侧胸膜、叶间胸膜亦示增厚伴多发结节灶,增强后见强化。右肺部分肺组织实变。右侧胸腔见少量液性密度影。左锁上见小淋巴结,短径约0.4CM。左肺门见稍大淋巴结,短径不足1.0CM。右乳内可见多发明显强化区。右腋窝可见肿大淋巴结,大者直径约0.6CM。肝实质内见多发斑片状低密度灶,边缘模糊,大者长径约4.3CM,增强后示不均质强化。胆囊不大,壁不厚。胰腺、脾、双肾上腺及扫描野内双肾未见明显异常。腹腔胃底周围、肠系膜区及腹膜后腹主动脉旁示增大或小淋巴结,大者短径约0.7CM。骨窗:扫描野内多个胸椎示混合性骨质破坏,成骨性改变为主。部分肋骨骨质密度略增高。</t>
+          <t>1.结合病史，右肺下叶癌治疗后，较前(2015-2-2)变化不著。2.双肺转移，右侧胸膜转移并右侧胸腔少量积液，右肺癌性淋巴管炎，均变化不著；肝转移，较前示进展；骨转移，部分密度增高，部分略示增大。3.结合临床，右乳癌治疗后，变化不著。4.右腋窝淋巴结稍大，较前缩小；腹腔、腹膜后及左肺门增大淋巴结，部分略示饱满。5.右肺下叶部分不张，局部略示增大；左肺炎症，较前好转。右肺下叶背段见一不规则形软组织结节，截面约1.7CM×2.2CM，边缘毛糙伴毛刺，牵拉邻近胸膜凹陷，远端见索条影及小叶间隔增厚，增强后结节呈显著不均匀强化。双肺见多发结节灶，局部呈粟粒状改变，大者长径约0.5CM。右侧胸膜、叶间胸膜亦示增厚伴多发结节灶，增强后见强化。右肺部分肺组织实变。右侧胸腔见少量液性密度影。左锁上见小淋巴结，短径约0.4CM。左肺门见稍大淋巴结，短径不足1.0CM。右乳内可见多发明显强化区。右腋窝可见肿大淋巴结，大者直径约0.6CM。肝实质内见多发斑片状低密度灶，边缘模糊，大者长径约4.3CM，增强后示不均质强化。胆囊不大，壁不厚。胰腺、脾、双肾上腺及扫描野内双肾未见明显异常。腹腔胃底周围、肠系膜区及腹膜后腹主动脉旁示增大或小淋巴结，大者短径约0.7CM。骨窗：扫描野内多个胸椎示混合性骨质破坏，成骨性改变为主。部分肋骨骨质密度略增高。</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -6560,7 +6560,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>左肺下叶背段支气管截断,基底段支气管狭窄,局部见软组织肿块,约48MM×52MM(IMA29),增强扫描不均匀强化,肿块与肺门肿大淋巴结融合,包绕左下肺动脉,上叶支气管受压变窄;肿块周缘毛糙,见多发索条及模糊结节。左下肺支气管扩张,见散在片絮影;左肺上叶尖后段见结节,其内见斑点状钙化。双肺见多发薄壁透亮区。右肺未见结节及斑片。纵隔5组及左肺门见肿大淋巴结,较大者约31MM×29MM(IMA21)。右侧叶间胸膜结节样增厚,左侧叶间胸膜增厚;双侧胸腔未见积液。扫及胸廓诸骨未见明确破坏征象。扫及双侧肾上腺见结节,左侧较大,约39MM×23MM(IMA62)。左下肺占位,符合中心型肺癌;左肺内转移待除外;纵隔及左侧肺门淋巴结转移。左肺上叶陈旧病灶。双肺小叶中心型肺气肿、肺大泡。右侧叶间胸膜结节样增厚,追查。双侧肾上腺结节,考虑转移,建议腹部检查。。</t>
+          <t>左肺下叶背段支气管截断，基底段支气管狭窄，局部见软组织肿块，约48MM×52MM(IMA29)，增强扫描不均匀强化，肿块与肺门肿大淋巴结融合，包绕左下肺动脉，上叶支气管受压变窄；肿块周缘毛糙，见多发索条及模糊结节。左下肺支气管扩张，见散在片絮影；左肺上叶尖后段见结节，其内见斑点状钙化。双肺见多发薄壁透亮区。右肺未见结节及斑片。纵隔5组及左肺门见肿大淋巴结，较大者约31MM×29MM(IMA21)。右侧叶间胸膜结节样增厚，左侧叶间胸膜增厚；双侧胸腔未见积液。扫及胸廓诸骨未见明确破坏征象。扫及双侧肾上腺见结节，左侧较大，约39MM×23MM(IMA62)。左下肺占位，符合中心型肺癌；左肺内转移待除外；纵隔及左侧肺门淋巴结转移。左肺上叶陈旧病灶。双肺小叶中心型肺气肿、肺大泡。右侧叶间胸膜结节样增厚，追查。双侧肾上腺结节，考虑转移，建议腹部检查。。</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -6582,7 +6582,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>肝右叶术后,术区结构紊乱,肝左右叶比例失调,门脉右支内见条状低密度灶,边缘模糊,增强后强化不著。另肝左外叶内见小条状低密度区,边缘模糊,似延门脉分支走形,增强后强化不著。胆囊充盈可,壁不厚。脾体积明显增大,密度均质。胰腺、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见明显肿大淋巴结。双侧肺野内见多发大小不等结节灶,边缘清晰,大者直径约0.7CM,增强后可见强化。纵隔及双肺门未见明显肿大淋巴结。骨窗示:T11椎体局限性骨质密度增高。1.结合临床,肝癌术后介入术后改变,门脉右支栓子形成,肝左叶条状低密度区,考虑门脉栓子,较前(2015-7-16)变化不著;双肺转移,较前部分病灶增大。部分变化不著;T11椎体局限性骨质密度增高,较前变化不著2.脾大</t>
+          <t>肝右叶术后，术区结构紊乱，肝左右叶比例失调，门脉右支内见条状低密度灶，边缘模糊，增强后强化不著。另肝左外叶内见小条状低密度区，边缘模糊，似延门脉分支走形，增强后强化不著。胆囊充盈可，壁不厚。脾体积明显增大，密度均质。胰腺、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见明显肿大淋巴结。双侧肺野内见多发大小不等结节灶，边缘清晰，大者直径约0.7CM，增强后可见强化。纵隔及双肺门未见明显肿大淋巴结。骨窗示：T11椎体局限性骨质密度增高。1.结合临床，肝癌术后介入术后改变，门脉右支栓子形成，肝左叶条状低密度区，考虑门脉栓子，较前(2015-7-16)变化不著；双肺转移，较前部分病灶增大。部分变化不著；T11椎体局限性骨质密度增高，较前变化不著2.脾大</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -6599,7 +6599,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>骨盆诸骨形态及信号未见明显异常。子宫大小形态可,信号未见明显异常。双侧附件区见数个卵圆形长T1长T2囊性信号影。膀胱及直肠未见明显异常。盆腔内未见明显肿大淋巴结。双肺内未见明显占位性病变。双肺门及纵隔内未见明显肿大淋巴结。右乳腺乳头上方见一肿块状等T1等T2信号,压脂序列为高信号,DWI序列为高信号,增强扫描呈较显著强化,大小约33MM×15MM。右腋窝见一肿大淋巴结,短径约17MM。余未见异常。考虑右乳腺癌并右腋窝淋巴结转移考虑双侧卵巢囊性灶</t>
+          <t>骨盆诸骨形态及信号未见明显异常。子宫大小形态可，信号未见明显异常。双侧附件区见数个卵圆形长T1长T2囊性信号影。膀胱及直肠未见明显异常。盆腔内未见明显肿大淋巴结。双肺内未见明显占位性病变。双肺门及纵隔内未见明显肿大淋巴结。右乳腺乳头上方见一肿块状等T1等T2信号，压脂序列为高信号，DWI序列为高信号，增强扫描呈较显著强化，大小约33MM×15MM。右腋窝见一肿大淋巴结，短径约17MM。余未见异常。考虑右乳腺癌并右腋窝淋巴结转移考虑双侧卵巢囊性灶</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -6621,7 +6621,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>左肺下叶见不规则肿物,边界不清,最大层面范围约70MM×31MM,边缘毛糙,可见短毛刺及浅分叶,密度欠均匀,增强扫描不均匀强化,内见多发片状坏死区,病灶与邻近肋胸膜及纵隔胸膜关系密切,与左下肺动静脉后基底段支分界不清,右下肺支气管主干、右下肺背段及后基底段支气管受压变窄,左下肺支气管主干后壁见一类结节影,大小约7MM×4MM,可见强化。双肺见多发无肺纹理透亮影。右中肺内侧段见少许条索影,边界清。余肺纹理清晰,未见实质性病变。气管及余支气管分支未见明显狭窄及异常扩张。左下气管旁、左下肺静脉旁、左肺门可见多个肿大淋巴结,部分边界不清,左肺门淋巴结与肺内病灶融合,最大者短径约18MM,增强扫描明显强化。双侧锁骨上区、右上下气管旁、右肺门可见多个淋巴结,孤立散在,较大者短径约6MM,可见强化。右上气管旁见数个小淋巴结,边界清,短径约4MM,增强扫描轻度强化。双侧胸腔未见积液。左上肺胸膜增厚、粘连。肝脏轮廓未见明显异常,各叶比例在正常范围以内,其外形光整,肝S2见一类圆形低密度灶,边界清,大小约8MM×6MM,增强扫描未见强化。肝S2似见一稍低密度灶,边界欠清,直径约7MM,增强扫描动脉期明显强化,门脉期及延迟期呈高密度。肝内胆管未见明显异常,胆囊未见明显扩张,胆总管未扩张。肝门区未见明显异常。门静脉未见明显异常。脾大小未见明显异常,密度均匀。胰腺大小、形态未见明显异常,密度均匀。双肾及双侧肾上腺未见明显异常。腹腔干、腹主动脉旁、肠系膜根部未见肿大淋巴结。甲状腺双叶及峡部形态正常,密度欠均匀,甲状腺左叶与峡部交界处、右叶各见一低密度灶,边界清,大者约14MM×10MM,边缘可见圆点状钙化,增强扫描不均匀强化。右侧颈VI区见一淋巴结,边界清,大小约11MM×10MM,增强扫描明显均匀强化。扫描所见骨质未见病理性破坏征象。左肺下叶不规则肿物,考虑周围型肺癌可能性大,考虑胸膜浸润。左下肺支气管主干类结节影,考虑种植转移可能,未除外原发性肺癌。左下气管旁、左下肺静脉旁、左肺门肿大淋巴结,考虑转移。右中肺内侧段少许纤维增殖灶。双肺肺气肿。双侧锁骨上区、右上下气管旁、右肺门淋巴结,性质待定。肝S2低密度无强化灶,考虑囊肿。肝S2强化结节,考虑血管瘤。甲状腺低密度灶,性质待定,建议结合超声检查。右侧颈VI区淋巴结,可疑转移。</t>
+          <t>左肺下叶见不规则肿物，边界不清，最大层面范围约70MM×31MM，边缘毛糙，可见短毛刺及浅分叶，密度欠均匀，增强扫描不均匀强化，内见多发片状坏死区，病灶与邻近肋胸膜及纵隔胸膜关系密切，与左下肺动静脉后基底段支分界不清，右下肺支气管主干、右下肺背段及后基底段支气管受压变窄，左下肺支气管主干后壁见一类结节影，大小约7MM×4MM，可见强化。双肺见多发无肺纹理透亮影。右中肺内侧段见少许条索影，边界清。余肺纹理清晰，未见实质性病变。气管及余支气管分支未见明显狭窄及异常扩张。左下气管旁、左下肺静脉旁、左肺门可见多个肿大淋巴结，部分边界不清，左肺门淋巴结与肺内病灶融合，最大者短径约18MM，增强扫描明显强化。双侧锁骨上区、右上下气管旁、右肺门可见多个淋巴结，孤立散在，较大者短径约6MM，可见强化。右上气管旁见数个小淋巴结，边界清，短径约4MM，增强扫描轻度强化。双侧胸腔未见积液。左上肺胸膜增厚、粘连。肝脏轮廓未见明显异常，各叶比例在正常范围以内，其外形光整，肝S2见一类圆形低密度灶，边界清，大小约8MM×6MM，增强扫描未见强化。肝S2似见一稍低密度灶，边界欠清，直径约7MM，增强扫描动脉期明显强化，门脉期及延迟期呈高密度。肝内胆管未见明显异常，胆囊未见明显扩张，胆总管未扩张。肝门区未见明显异常。门静脉未见明显异常。脾大小未见明显异常，密度均匀。胰腺大小、形态未见明显异常，密度均匀。双肾及双侧肾上腺未见明显异常。腹腔干、腹主动脉旁、肠系膜根部未见肿大淋巴结。甲状腺双叶及峡部形态正常，密度欠均匀，甲状腺左叶与峡部交界处、右叶各见一低密度灶，边界清，大者约14MM×10MM，边缘可见圆点状钙化，增强扫描不均匀强化。右侧颈VI区见一淋巴结，边界清，大小约11MM×10MM，增强扫描明显均匀强化。扫描所见骨质未见病理性破坏征象。左肺下叶不规则肿物，考虑周围型肺癌可能性大，考虑胸膜浸润。左下肺支气管主干类结节影，考虑种植转移可能，未除外原发性肺癌。左下气管旁、左下肺静脉旁、左肺门肿大淋巴结，考虑转移。右中肺内侧段少许纤维增殖灶。双肺肺气肿。双侧锁骨上区、右上下气管旁、右肺门淋巴结，性质待定。肝S2低密度无强化灶，考虑囊肿。肝S2强化结节，考虑血管瘤。甲状腺低密度灶，性质待定，建议结合超声检查。右侧颈VI区淋巴结，可疑转移。</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -6643,7 +6643,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>右侧乳腺癌术后复发、化疗后:右侧乳腺术后缺失,右侧胸壁未见明显结节、肿块影,局部皮肤增厚,皮下脂肪内见少许索条影。左侧乳腺未见异常。双侧腋窝、双侧内乳区未见肿大淋巴结。右侧胸腔大量积液,右肺上叶、中叶、下叶受压,肺组织不张,增强扫描明显强化。左肺纹理清晰,左肺下叶背段见结节状稍高密度影,边界不清,长径约12MM,增强扫描强化不明显。右肺中叶、下叶支气管腔变窄,右肺上叶支气管受压。气管及余支气管分支通畅。双侧锁骨上窝、右上气管旁、血管前、主肺动脉窗、双下气管旁、隆突下、右肺门见多发淋巴结,其中右肺门淋巴结与不张的右肺组织相互融合,分界不清。左侧胸腔未见积液。左侧胸膜无增厚、粘连。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,未见明显异常密度灶,增强扫描未见异常强化影。肝内胆管正常,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。肝门区未见异常。门静脉未见充盈缺损。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。双肾及双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。右侧第4后肋骨质膨胀,骨质密度不均匀增高,部分骨皮质连续;腰1椎体左侧份见一结节状高密度影,边界尚清,直径5MM。右侧乳腺癌术后,对比2016-12-29片:右乳腺术后缺失,局部未见明显肿物影。右侧胸腔积液,并右肺压缩性肺不张,较前无大变化。左下肺类结节灶,较前变化不大。双侧锁骨上窝、纵隔、右肺门多发淋巴结,较前未见明显变化。右侧第4后肋可疑转移瘤,较前变化不明显。腰1椎体左侧份结节状高密度影,可疑转移,较前变化不明显。上腹部未见明显病变。</t>
+          <t>右侧乳腺癌术后复发、化疗后：右侧乳腺术后缺失，右侧胸壁未见明显结节、肿块影，局部皮肤增厚，皮下脂肪内见少许索条影。左侧乳腺未见异常。双侧腋窝、双侧内乳区未见肿大淋巴结。右侧胸腔大量积液，右肺上叶、中叶、下叶受压，肺组织不张，增强扫描明显强化。左肺纹理清晰，左肺下叶背段见结节状稍高密度影，边界不清，长径约12MM，增强扫描强化不明显。右肺中叶、下叶支气管腔变窄，右肺上叶支气管受压。气管及余支气管分支通畅。双侧锁骨上窝、右上气管旁、血管前、主肺动脉窗、双下气管旁、隆突下、右肺门见多发淋巴结，其中右肺门淋巴结与不张的右肺组织相互融合，分界不清。左侧胸腔未见积液。左侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，未见明显异常密度灶，增强扫描未见异常强化影。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉未见充盈缺损。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾及双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。右侧第4后肋骨质膨胀，骨质密度不均匀增高，部分骨皮质连续；腰1椎体左侧份见一结节状高密度影，边界尚清，直径5MM。右侧乳腺癌术后，对比2016-12-29片：右乳腺术后缺失，局部未见明显肿物影。右侧胸腔积液，并右肺压缩性肺不张，较前无大变化。左下肺类结节灶，较前变化不大。双侧锁骨上窝、纵隔、右肺门多发淋巴结，较前未见明显变化。右侧第4后肋可疑转移瘤，较前变化不明显。腰1椎体左侧份结节状高密度影，可疑转移，较前变化不明显。上腹部未见明显病变。</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -6660,7 +6660,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>右锁上、双上下气管旁、血管前、隆突下、双肺门见多发肿大淋巴结,最大者约30MM×16MM,边界不清,部分相互融合,增强扫描呈不均匀强化。右肺下叶见一肿块,大小约31MM×27MM,边界清晰,边缘见毛刺及分叶,增强扫描呈轻度强化,肿块外侧见片状致密影及纤维条索,边界稍模糊。右肺上叶后段见一斑点状钙化灶。余双肺纹理清晰,肺内未见实质性病变。右肺下叶外基底段支气管部分分支变窄,气管及余支气管分支通畅。双侧胸腔未见积液。右下胸膜稍增厚,左侧胸膜未见增厚、粘连。肝脏形态、各叶比例未见异常,其外形轮廓光整,密度均匀,增强扫描未见异常强化灶。肝内外胆管未见异常,其内未见结石,胆囊未见异常。肝门区未见异常。门静脉未见异常。脾脏、胰腺大小、形态、密度未见异常,增强扫描未见异常强化。双肾见数个斑点状致密灶,双肾见数个类圆形低密度灶,最大者约6MM×5MM,边界清晰,增强扫描未见强化。双肾上腺未见异常。腹主动脉旁未见肿大淋巴结。扫描范围内所见骨质未见明确破坏征象。右肺下叶肿块,考虑肺癌,肿块外侧斑片状病变,考虑炎症可能性大。右锁上、纵隔、双肺门多发淋巴结转移瘤。右肺上叶后段小钙化灶。肝脏未见明显病变。双肾小结石,双肾小囊肿。</t>
+          <t>右锁上、双上下气管旁、血管前、隆突下、双肺门见多发肿大淋巴结，最大者约30MM×16MM，边界不清，部分相互融合，增强扫描呈不均匀强化。右肺下叶见一肿块，大小约31MM×27MM，边界清晰，边缘见毛刺及分叶，增强扫描呈轻度强化，肿块外侧见片状致密影及纤维条索，边界稍模糊。右肺上叶后段见一斑点状钙化灶。余双肺纹理清晰，肺内未见实质性病变。右肺下叶外基底段支气管部分分支变窄，气管及余支气管分支通畅。双侧胸腔未见积液。右下胸膜稍增厚，左侧胸膜未见增厚、粘连。肝脏形态、各叶比例未见异常，其外形轮廓光整，密度均匀，增强扫描未见异常强化灶。肝内外胆管未见异常，其内未见结石，胆囊未见异常。肝门区未见异常。门静脉未见异常。脾脏、胰腺大小、形态、密度未见异常，增强扫描未见异常强化。双肾见数个斑点状致密灶，双肾见数个类圆形低密度灶，最大者约6MM×5MM，边界清晰，增强扫描未见强化。双肾上腺未见异常。腹主动脉旁未见肿大淋巴结。扫描范围内所见骨质未见明确破坏征象。右肺下叶肿块，考虑肺癌，肿块外侧斑片状病变，考虑炎症可能性大。右锁上、纵隔、双肺门多发淋巴结转移瘤。右肺上叶后段小钙化灶。肝脏未见明显病变。双肾小结石，双肾小囊肿。</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -6682,7 +6682,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>左下肺癌楔形切除术后、化疗及靶向治疗后,和2016-06-14片对比:左下肺条片影,考虑术后改变可能性大,较前未见明显变化。右肺中叶及左下肺近胸膜结节灶,较前新增,可疑转移瘤。右肺上叶尖段小斑片稍高密度灶,较前稍增多。左肺上叶下舌段、右下肺斑片灶,考虑纤维灶。右下肺肺大泡。胆囊结石。双肾囊肿,部分复发性囊肿。T12椎体高密度灶,较前稍增大,可疑转移瘤。左侧侧胸壁不规则片状影,考虑术后改变。左侧肩胛骨前方脂肪瘤,较前相仿。左下肺癌楔形切除术后、化疗及靶向治疗后,和2016-06-14片对比:双肺纹理清晰,左肺下叶背段及后基底段见不规则条片影,边界欠清,邻近胸膜牵拉,较前未见明显变化。右肺上叶尖段见2个小斑片稍高密度灶,边界欠清,大者直径约6MM,较前稍增多。右肺中叶、左下肺近胸膜见多个结节灶,边界清,大者直径约7MM,增强后轻度强化。左肺上叶下舌段、右下肺见斑片灶,边界欠清。右下肺见多个含气透亮空腔影。气管及支气管分支通畅。双肺门、双侧腋窝及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。左侧胸膜局部稍增厚。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,未见明显异常密度灶,增强扫描未见异常强化影。肝内胆管正常,其内未见结石影,胆囊大小正常,其内见结石影,胆总管未见扩张,其内未见结石影。肝门区未见异常。门静脉未见异常。脾大小正常,密度均匀。胰腺大小、形态未见异常,密度均匀。双肾见多发囊性灶,最大约为17MM×13MM,边界清,增强扫描未见强化,部分平扫呈稍高密度。双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。左侧侧胸壁见不规则片状影,边界不清,较前未见明显变化。左侧肩胛骨前方见一类圆形脂肪密度影,大小约18MM×16MM,边界清。T12椎体见一结节状高密度灶,长径约13MM,较前稍增大;左侧第4、5肋腋段骨质中断。余所见骨质结构未见明显破坏征象。</t>
+          <t>左下肺癌楔形切除术后、化疗及靶向治疗后，和2016-06-14片对比：左下肺条片影，考虑术后改变可能性大，较前未见明显变化。右肺中叶及左下肺近胸膜结节灶，较前新增，可疑转移瘤。右肺上叶尖段小斑片稍高密度灶，较前稍增多。左肺上叶下舌段、右下肺斑片灶，考虑纤维灶。右下肺肺大泡。胆囊结石。双肾囊肿，部分复发性囊肿。T12椎体高密度灶，较前稍增大，可疑转移瘤。左侧侧胸壁不规则片状影，考虑术后改变。左侧肩胛骨前方脂肪瘤，较前相仿。左下肺癌楔形切除术后、化疗及靶向治疗后，和2016-06-14片对比：双肺纹理清晰，左肺下叶背段及后基底段见不规则条片影，边界欠清，邻近胸膜牵拉，较前未见明显变化。右肺上叶尖段见2个小斑片稍高密度灶，边界欠清，大者直径约6MM，较前稍增多。右肺中叶、左下肺近胸膜见多个结节灶，边界清，大者直径约7MM，增强后轻度强化。左肺上叶下舌段、右下肺见斑片灶，边界欠清。右下肺见多个含气透亮空腔影。气管及支气管分支通畅。双肺门、双侧腋窝及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。左侧胸膜局部稍增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，未见明显异常密度灶，增强扫描未见异常强化影。肝内胆管正常，其内未见结石影，胆囊大小正常，其内见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态未见异常，密度均匀。双肾见多发囊性灶，最大约为17MM×13MM，边界清，增强扫描未见强化，部分平扫呈稍高密度。双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。左侧侧胸壁见不规则片状影，边界不清，较前未见明显变化。左侧肩胛骨前方见一类圆形脂肪密度影，大小约18MM×16MM，边界清。T12椎体见一结节状高密度灶，长径约13MM，较前稍增大；左侧第4、5肋腋段骨质中断。余所见骨质结构未见明显破坏征象。</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -6699,7 +6699,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>左肺癌综合治疗后,对比2014-6-10片:左肺下叶近肺门区见一不规则形软组织灶,边界不清,密度不均,边缘毛糙,可见分叶,增强扫描不均匀强化,与邻近不张肺组织分界不清,左肺上叶、左肺下叶纵隔旁可见大片状密影,边界欠清,密度不均匀,内可见充气支气管影,范围较前未见明显变化,密度较前未见明显变化。近膈肌处见片状高密度灶,边界欠清,密度不均,与膈面及胸膜关系密切,增强扫描轻度强化,范围较前未见明显变化。双上肺见散在小斑片影、类结节,边界欠清,较前未见明显变化。右下肺见一结节,大小约3MM×2MM,较前无明显改变。气管及支气管分支通畅。双侧胸腔未见积液,双侧胸膜局部轻度增厚。血管前、右下气管旁、主动脉旁、隆突下多个淋巴结,大者短径约6MM,增强见不均匀强化,较前未见明显变化。双肺门各见一淋巴结,大者短径约7MM,增强后轻度强化,较前未见明显变化。肝脏形态未见异常,各叶比例在正常范围以内,其外形轮廓光整,密度欠均匀,S4见一低密度影,大小约17MM×12MM,边界清,增强扫描未见强化,较前未见明显变化。肝内胆管未见扩张,胆囊大小未见异常,其内见多个致密灶。胆总管未见扩张。肝门区未见肿大淋巴结。门静脉未见充盈缺损。脾大小未见异常,密度均匀。胰腺大小、形态未见异常,密度均匀。左肾上极见一大小为13MM×11MM低密度灶,边界清,增强后未见明显强化。所见右肾大小、形态正常,密度未见明显异常,左侧肾上腺局部稍增厚,右侧肾上腺大小、形态、密度未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。第3、4胸椎椎体、第9胸椎右侧椎板可见结节状及片状致密区,椎旁未见明显软组织肿物影,较前未见明显变化。左肺癌综合治疗后,对比2014-6-10片:左下肺肿块与左肺纵隔旁炎性病变分界不清,范围较前未见明显变化。近膈肌处片状高密度灶,范围较前变化不大。左上肺大片密影,考虑炎症性改变。双上肺散在斑片灶,右肺小结节灶,较前未见明显变化。肝囊肿、左肾囊肿。胆囊多发结石。第3、4胸椎体、第9胸椎右侧椎板致密灶,考虑转移瘤,较前未见明显变化。</t>
+          <t>左肺癌综合治疗后，对比2014-6-10片：左肺下叶近肺门区见一不规则形软组织灶，边界不清，密度不均，边缘毛糙，可见分叶，增强扫描不均匀强化，与邻近不张肺组织分界不清，左肺上叶、左肺下叶纵隔旁可见大片状密影，边界欠清，密度不均匀，内可见充气支气管影，范围较前未见明显变化，密度较前未见明显变化。近膈肌处见片状高密度灶，边界欠清，密度不均，与膈面及胸膜关系密切，增强扫描轻度强化，范围较前未见明显变化。双上肺见散在小斑片影、类结节，边界欠清，较前未见明显变化。右下肺见一结节，大小约3MM×2MM，较前无明显改变。气管及支气管分支通畅。双侧胸腔未见积液，双侧胸膜局部轻度增厚。血管前、右下气管旁、主动脉旁、隆突下多个淋巴结，大者短径约6MM，增强见不均匀强化，较前未见明显变化。双肺门各见一淋巴结，大者短径约7MM，增强后轻度强化，较前未见明显变化。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，S4见一低密度影，大小约17MM×12MM，边界清，增强扫描未见强化，较前未见明显变化。肝内胆管未见扩张，胆囊大小未见异常，其内见多个致密灶。胆总管未见扩张。肝门区未见肿大淋巴结。门静脉未见充盈缺损。脾大小未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。左肾上极见一大小为13MM×11MM低密度灶，边界清，增强后未见明显强化。所见右肾大小、形态正常，密度未见明显异常，左侧肾上腺局部稍增厚，右侧肾上腺大小、形态、密度未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。第3、4胸椎椎体、第9胸椎右侧椎板可见结节状及片状致密区，椎旁未见明显软组织肿物影，较前未见明显变化。左肺癌综合治疗后，对比2014-6-10片：左下肺肿块与左肺纵隔旁炎性病变分界不清，范围较前未见明显变化。近膈肌处片状高密度灶，范围较前变化不大。左上肺大片密影，考虑炎症性改变。双上肺散在斑片灶，右肺小结节灶，较前未见明显变化。肝囊肿、左肾囊肿。胆囊多发结石。第3、4胸椎体、第9胸椎右侧椎板致密灶，考虑转移瘤，较前未见明显变化。</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -6716,7 +6716,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>左乳癌术后改变,局部未见明显肿物影。左锁上区肿大淋巴结,考虑转移,较前缩小。右中肺及左肺上叶舌段少许纤维增殖灶。不均匀脂肪肝。肝S3小囊肿。肝S6稍低密度灶,较前新发,可疑转移瘤,建议MRI检查。甲状腺右侧叶病灶,考虑结节性甲状腺肿可能大。右侧上颌窦炎症。子宫左前壁结节,考虑子宫肌瘤,较前未见明显变化。腰1椎体骨质改变,考虑转移瘤,较前未见明显变化。骶1椎体左份稍高密度结节,较前未见明显变化。腰椎退行性改变。左乳癌术后复查,对比2017-02-23、2017-02-28CT片:左乳术后缺失,左前胸壁未见明确结节肿物影。右乳未见明确肿物。左锁上区见多发肿大淋巴结,部分相互融合,最大约20MM×18MM,增强后不均匀明显强化,较前缩小。余颈部未见肿大淋巴结。双侧腋窝及内乳区未见明确肿大淋巴结。右肺中叶内侧段、左肺上叶舌段见少许条索状影,边界清晰,与胸膜相连;余肺清晰,肺内未见实质性病变。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚。肝脏形态正常,各叶比例在正常范围以内,轮廓光整,密度不均匀性减低。肝S3见一小圆形低密度灶,大者直径约4MM,边界清,无强化。肝S6见一类圆形低密度灶,大小约7MM×6MM,增强扫描似见轻度强化,较前新发。肝内胆管、胆总管未见扩张,内未见结石。胆囊大小正常,内未见结石。肝门区正常。门静脉未见异常。脾、胰腺大小、形态正常,密度均匀。双肾、双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。甲状腺右侧叶见类圆形稍低密度结节,直径约5MM,增强后轻度强化,大致同前。喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。双侧颌下腺、腮腺大小形态正常,密度均匀。右侧上颌窦粘膜增厚。膀胱充盈良好,境界清楚。子宫左前壁见一类圆形结节,大小约21MM×19MM,密度尚均匀,增强后轻中度强化,较前相仿。子宫颈大小、形态未见异常。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。腰1椎体见类圆形致密灶,直径约18MM,边界模糊,较前相仿;骶1左侧份见小结节状致密灶,直径约5MM,边界尚清,较前未见明显变化。扫描层面中L2-5、S1椎体边缘骨质增生,L5椎体上缘见骨赘形成。</t>
+          <t>左乳癌术后改变，局部未见明显肿物影。左锁上区肿大淋巴结，考虑转移，较前缩小。右中肺及左肺上叶舌段少许纤维增殖灶。不均匀脂肪肝。肝S3小囊肿。肝S6稍低密度灶，较前新发，可疑转移瘤，建议MRI检查。甲状腺右侧叶病灶，考虑结节性甲状腺肿可能大。右侧上颌窦炎症。子宫左前壁结节，考虑子宫肌瘤，较前未见明显变化。腰1椎体骨质改变，考虑转移瘤，较前未见明显变化。骶1椎体左份稍高密度结节，较前未见明显变化。腰椎退行性改变。左乳癌术后复查，对比2017-02-23、2017-02-28CT片：左乳术后缺失，左前胸壁未见明确结节肿物影。右乳未见明确肿物。左锁上区见多发肿大淋巴结，部分相互融合，最大约20MM×18MM，增强后不均匀明显强化，较前缩小。余颈部未见肿大淋巴结。双侧腋窝及内乳区未见明确肿大淋巴结。右肺中叶内侧段、左肺上叶舌段见少许条索状影，边界清晰，与胸膜相连；余肺清晰，肺内未见实质性病变。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚。肝脏形态正常，各叶比例在正常范围以内，轮廓光整，密度不均匀性减低。肝S3见一小圆形低密度灶，大者直径约4MM，边界清，无强化。肝S6见一类圆形低密度灶，大小约7MM×6MM，增强扫描似见轻度强化，较前新发。肝内胆管、胆总管未见扩张，内未见结石。胆囊大小正常，内未见结石。肝门区正常。门静脉未见异常。脾、胰腺大小、形态正常，密度均匀。双肾、双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。甲状腺右侧叶见类圆形稍低密度结节，直径约5MM，增强后轻度强化，大致同前。喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。双侧颌下腺、腮腺大小形态正常，密度均匀。右侧上颌窦粘膜增厚。膀胱充盈良好，境界清楚。子宫左前壁见一类圆形结节，大小约21MM×19MM，密度尚均匀，增强后轻中度强化，较前相仿。子宫颈大小、形态未见异常。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。腰1椎体见类圆形致密灶，直径约18MM，边界模糊，较前相仿；骶1左侧份见小结节状致密灶，直径约5MM，边界尚清，较前未见明显变化。扫描层面中L2-5、S1椎体边缘骨质增生，L5椎体上缘见骨赘形成。</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -6733,7 +6733,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像:脑部PET图像示脑皮质及双侧基底节、丘脑、小脑放射性分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂明显增宽;中线结构居中。眼眶部PET/CT图像示眶内结构及其糖代谢未见明显异常。鼻咽部、咽旁间隙、副鼻窦结构及其糖代谢均未见明显异常。颈部PET/CT图像示右锁骨上见糖代谢异常增高的肿大淋巴结,大小为17.0MM×10.7MM,最大SUV值为双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结;口咽、喉咽部无占位;甲状腺无肿大,未见明显占位。胸部PET/CT图像示两肺野透亮度增高,内见多发薄壁囊状透亮影,左肺上叶舌段及下叶背段各见一糖代谢异常增高的厚壁空洞,大小分别为29.7MM×27.4MM、13.6MM×12.2MM,最大SUV值分别为12.12、4.77,所示空洞呈偏心性,边缘毛糙,周围伴细毛刺,与相邻胸膜牵拉,两肺叶另见无明显糖代谢的斑片影及纤维索条影,部分小叶间隔增厚;腔静脉气管间、右侧内乳、心膈角见多枚糖代谢异常增高的淋巴结,糖代谢最高者大小为12.1MM×6.7MM,最大SUV值为3.88,双侧腋窝见多发糖代谢异常增高的肿大淋巴结,最大者大小为22.4MM×5.5MM,最大SUV值为3.99,余处未见明显糖代谢异常增高灶及占位性病变;双侧胸腔无积液;心脏不大。腹部PET/CT图像见腹腔及后腹膜多发糖代谢异常增高的肿大淋巴结,最大者大小为21.5MM×18.5MM,最大SUV值为10.15,膈脚后见糖代谢异常增高的肿大淋巴结,大小为18.9MM×17.1MM,最大SUV值为5.55,脾脏体积增大伴糖代谢异常增高,最大SUV值为5.74,胃壁均匀性轻度生理性糖代谢增强;肠道呈线型生理性糖代谢增强;肝、胆囊、胰、双肾上腺、肾、输尿管等处未见明显糖代谢异常增高灶及占位性病变;腹腔无积液。盆部PET/CT图像示左侧盆壁见多发串珠状糖代谢异常增高的肿大淋巴结,最大者大小为45.3MM×27.8MM,最大SUV值为12.32,双侧腹股沟见多发糖代谢异常增高的肿大淋巴结,最大者大小为24.2MM×12.8MM,最大SUV值为4.24;膀胱内大量放射性生理性积聚;肠道呈线型生理性糖代谢增强;前列腺、生殖器等处未见明显异常糖代谢增强灶及占位性病变;盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见异常。全身PET/CT显像示:考虑左肺MT(2枚)伴右锁骨上、纵隔、内乳、心膈角、腋窝、膈脚后、腹腔、后腹膜、盆腔、腹股沟多发淋巴结转移可能,淋巴瘤广泛累及不除外,请结合临床;脾脏增大伴糖代谢异常增高,考虑与患者发热相关可能,肿瘤累及不除外;两肺气肿伴肺大泡;两肺间质性炎症。</t>
+          <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像：脑部PET图像示脑皮质及双侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂明显增宽；中线结构居中。眼眶部PET/CT图像示眶内结构及其糖代谢未见明显异常。鼻咽部、咽旁间隙、副鼻窦结构及其糖代谢均未见明显异常。颈部PET/CT图像示右锁骨上见糖代谢异常增高的肿大淋巴结，大小为17.0MM×10.7MM，最大SUV值为双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示两肺野透亮度增高，内见多发薄壁囊状透亮影，左肺上叶舌段及下叶背段各见一糖代谢异常增高的厚壁空洞，大小分别为29.7MM×27.4MM、13.6MM×12.2MM，最大SUV值分别为12.12、4.77，所示空洞呈偏心性，边缘毛糙，周围伴细毛刺，与相邻胸膜牵拉，两肺叶另见无明显糖代谢的斑片影及纤维索条影，部分小叶间隔增厚；腔静脉气管间、右侧内乳、心膈角见多枚糖代谢异常增高的淋巴结，糖代谢最高者大小为12.1MM×6.7MM，最大SUV值为3.88，双侧腋窝见多发糖代谢异常增高的肿大淋巴结，最大者大小为22.4MM×5.5MM，最大SUV值为3.99，余处未见明显糖代谢异常增高灶及占位性病变；双侧胸腔无积液；心脏不大。腹部PET/CT图像见腹腔及后腹膜多发糖代谢异常增高的肿大淋巴结，最大者大小为21.5MM×18.5MM，最大SUV值为10.15，膈脚后见糖代谢异常增高的肿大淋巴结，大小为18.9MM×17.1MM，最大SUV值为5.55，脾脏体积增大伴糖代谢异常增高，最大SUV值为5.74，胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、双肾上腺、肾、输尿管等处未见明显糖代谢异常增高灶及占位性病变；腹腔无积液。盆部PET/CT图像示左侧盆壁见多发串珠状糖代谢异常增高的肿大淋巴结，最大者大小为45.3MM×27.8MM，最大SUV值为12.32，双侧腹股沟见多发糖代谢异常增高的肿大淋巴结，最大者大小为24.2MM×12.8MM，最大SUV值为4.24；膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；前列腺、生殖器等处未见明显异常糖代谢增强灶及占位性病变；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见异常。全身PET/CT显像示：考虑左肺MT(2枚)伴右锁骨上、纵隔、内乳、心膈角、腋窝、膈脚后、腹腔、后腹膜、盆腔、腹股沟多发淋巴结转移可能，淋巴瘤广泛累及不除外，请结合临床；脾脏增大伴糖代谢异常增高，考虑与患者发热相关可能，肿瘤累及不除外；两肺气肿伴肺大泡；两肺间质性炎症。</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -6755,7 +6755,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>1.结合临床,前纵膈小细胞癌治疗后,请结合前片;纵膈、双侧锁骨上、右肺门淋巴结转移;双肺、胸膜转移;膈脚后淋巴结肿大2.右肾上腺区结节灶,建议观察3.左侧胸腔积液,左侧膈肌上提前纵膈可见类三角形软组织密度肿块影,约3.4CM×3.6CM,增强扫描呈明显不均匀强化,与邻近纵膈内软组织分界不清,纵膈内3A区、4R、9L区及双锁骨上、右肺门示结节灶,大者短径约1.4CM。双肺及双侧胸膜、叶间胸膜散在多发结节灶,大者直径约1.0CM。左侧膈肌明显上提。左胸腔内可见弧形液性密度影胸膜显示不均匀增厚、强化。肝脏形态不规则,实质密度均匀,胆囊、胰腺、脾及双肾、双肾上腺未见异常。右肾上腺区示结节灶,约0.8CM×1.3CM。膈脚后示数个结节灶,大者短径约0.8CM。</t>
+          <t>1.结合临床，前纵膈小细胞癌治疗后，请结合前片；纵膈、双侧锁骨上、右肺门淋巴结转移；双肺、胸膜转移；膈脚后淋巴结肿大2.右肾上腺区结节灶，建议观察3.左侧胸腔积液，左侧膈肌上提前纵膈可见类三角形软组织密度肿块影，约3.4CM×3.6CM，增强扫描呈明显不均匀强化，与邻近纵膈内软组织分界不清，纵膈内3A区、4R、9L区及双锁骨上、右肺门示结节灶，大者短径约1.4CM。双肺及双侧胸膜、叶间胸膜散在多发结节灶，大者直径约1.0CM。左侧膈肌明显上提。左胸腔内可见弧形液性密度影胸膜显示不均匀增厚、强化。肝脏形态不规则，实质密度均匀，胆囊、胰腺、脾及双肾、双肾上腺未见异常。右肾上腺区示结节灶，约0.8CM×1.3CM。膈脚后示数个结节灶，大者短径约0.8CM。</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -6777,7 +6777,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>胰腺体部见稍低密度团块,大小约4.0CM×2.47CM,动态增强后强化程度较低,胰管未见明显扩张,胰尾部实质萎缩密度减低,脾血管穿行病灶段显示欠清。肝脏表面光滑,各叶比例匀称,内见多枚稍低密度灶,大者长径约22MM,动态增强后呈边缘强化为主,其中肝左内叶一枚病灶动脉期明显强化,延迟后强化程度仍高于肝实质,肝内血管分布均匀,走向自然,未见狭窄或充盈缺损;脾脏未见肿大,密度均匀;胆管未见扩张;胰腺及所见左侧肾脏无殊;右肾见囊状无强化灶;后腹膜见多发稍大淋巴结;前列腺稍大伴点状致密影;膀胱充盈欠佳,未见明显异常;盆腹腔内无积液。胰体部MT伴脾血管受侵,肝内多发转移灶,肝左内叶血管瘤,较16-12-26MMR片基本相仿;后腹膜多发稍大淋巴结;右肾囊肿;前列腺稍增大伴钙化。</t>
+          <t>胰腺体部见稍低密度团块，大小约4.0CM×2.47CM，动态增强后强化程度较低，胰管未见明显扩张，胰尾部实质萎缩密度减低，脾血管穿行病灶段显示欠清。肝脏表面光滑，各叶比例匀称，内见多枚稍低密度灶，大者长径约22MM，动态增强后呈边缘强化为主，其中肝左内叶一枚病灶动脉期明显强化，延迟后强化程度仍高于肝实质，肝内血管分布均匀，走向自然，未见狭窄或充盈缺损；脾脏未见肿大，密度均匀；胆管未见扩张；胰腺及所见左侧肾脏无殊；右肾见囊状无强化灶；后腹膜见多发稍大淋巴结；前列腺稍大伴点状致密影；膀胱充盈欠佳，未见明显异常；盆腹腔内无积液。胰体部MT伴脾血管受侵，肝内多发转移灶，肝左内叶血管瘤，较16-12-26MMR片基本相仿；后腹膜多发稍大淋巴结；右肾囊肿；前列腺稍增大伴钙化。</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -6799,7 +6799,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼外肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。双侧上颌窦内见软组织密度影,考虑为慢性炎症;余副鼻窦未见明显异常。颈部PET/CT图像示双侧锁骨区多发糖代谢异常增高的淋巴结,较显著者位于左侧,大小约为15.6MM×11.5MM,最大SUV值为11.5;双侧颈部、口咽、喉咽部无殊;甲状腺无肿大,左叶见直径约为2.5MM的低密度结节,不伴糖代谢异常增高,右叶无殊。胸部PET/CT图像示纵隔内左锁骨下动脉旁、双侧气管食管沟、气管前间隙、血管前间隙、主动脉窗、主动脉弓旁、隆突下、食管旁、右肺门多发糖代谢异常增高的淋巴结,较显著者位于腔静脉气管间隙,大小约为23.9MM×13.6MM,最大SUV值为12.6;右肺下叶内基底段糖代谢异常增高的占位,大小约为39.8MM×30.6MM,边缘欠光整,与邻近胸膜分界不清,最大SUV值为19.7;两肺上叶见数枚微小结节,两肺见少许条索、条片影,均无明显糖代谢异常增高;双侧胸膜局部增厚;双侧胸腔无积液;心脏无明显增大;双侧腋窝无殊。腹部PET图像示胃壁呈生理性糖代谢增强;肠道呈生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整,各叶比例匀称,实质内未见明显占位;肝内外胆管无扩张;右肾下极见直径约为8.0MM稍高密度结节;脾脏、胆囊、胰、左肾、双肾上腺无殊;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚;肠道呈生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈,壁光滑无增厚;双侧精囊腺形态可;双侧膀胱精囊三角对称;前列腺饱满,内见点状钙化;盆腔内未见占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET/CT图像示胸骨、双侧多根肋骨、双侧锁骨、肩胛骨、右侧肱骨上段、脊柱多处、骨盆多处、双侧股骨上段多发骨质破坏或骨质密度不均,伴糖代谢异常增高,糖代谢最高者位于右侧髂骨,最大SUV值为10.0。考虑为右肺下叶MT侵犯毗邻胸膜,伴纵隔、右肺门、双侧锁骨区多发淋巴结转移,全身多处骨转移;两肺上叶微小结节,请随访;两肺慢性炎症;甲状腺左叶良性病变,请结合超声检查;右肾复杂囊肿。</t>
+          <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。双侧上颌窦内见软组织密度影，考虑为慢性炎症；余副鼻窦未见明显异常。颈部PET/CT图像示双侧锁骨区多发糖代谢异常增高的淋巴结，较显著者位于左侧，大小约为15.6MM×11.5MM，最大SUV值为11.5；双侧颈部、口咽、喉咽部无殊；甲状腺无肿大，左叶见直径约为2.5MM的低密度结节，不伴糖代谢异常增高，右叶无殊。胸部PET/CT图像示纵隔内左锁骨下动脉旁、双侧气管食管沟、气管前间隙、血管前间隙、主动脉窗、主动脉弓旁、隆突下、食管旁、右肺门多发糖代谢异常增高的淋巴结，较显著者位于腔静脉气管间隙，大小约为23.9MM×13.6MM，最大SUV值为12.6；右肺下叶内基底段糖代谢异常增高的占位，大小约为39.8MM×30.6MM，边缘欠光整，与邻近胸膜分界不清，最大SUV值为19.7；两肺上叶见数枚微小结节，两肺见少许条索、条片影，均无明显糖代谢异常增高；双侧胸膜局部增厚；双侧胸腔无积液；心脏无明显增大；双侧腋窝无殊。腹部PET图像示胃壁呈生理性糖代谢增强；肠道呈生理性糖代谢增强；肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内未见明显占位；肝内外胆管无扩张；右肾下极见直径约为8.0MM稍高密度结节；脾脏、胆囊、胰、左肾、双肾上腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈，壁光滑无增厚；双侧精囊腺形态可；双侧膀胱精囊三角对称；前列腺饱满，内见点状钙化；盆腔内未见占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示胸骨、双侧多根肋骨、双侧锁骨、肩胛骨、右侧肱骨上段、脊柱多处、骨盆多处、双侧股骨上段多发骨质破坏或骨质密度不均，伴糖代谢异常增高，糖代谢最高者位于右侧髂骨，最大SUV值为10.0。考虑为右肺下叶MT侵犯毗邻胸膜，伴纵隔、右肺门、双侧锁骨区多发淋巴结转移，全身多处骨转移；两肺上叶微小结节，请随访；两肺慢性炎症；甲状腺左叶良性病变，请结合超声检查；右肾复杂囊肿。</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -6821,7 +6821,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>1.结合病史,右肺下叶癌治疗后,较2014-11-26片略小2.双肺转移,较前变化不著3.右侧胸膜转移并右侧胸腔少量积液,较前变化不著4.右肺癌性淋巴管炎,较前变化不著5.肝转移,较前好转6.骨转移,成骨性病变较前增多7.右乳癌治疗后,较前变化不著8.右腋窝淋巴结稍大,较前缩小9.右肺下叶部分不张,较前好转10.左肺炎症11.腹腔多发小淋巴结,左肺门稍大淋巴结,较前变化不著右肺下叶背段见一不规则形软组织结节,截面约1.7CM×2.2CM,边缘毛糙伴毛刺,牵拉邻近胸膜凹陷,远端见索条影及小叶间隔增厚,增强后结节呈显著不均匀强化。双肺见多发结节灶,局部呈粟粒状改变,大者长径约0.5CM。右侧胸膜,叶间胸膜亦示增厚伴多发结节灶,增强后见强化。右肺部分肺组织实变。右侧胸腔见少量液性密度影。左锁上见小淋巴结,短径约0.4CM。左肺门见稍大淋巴结,短径不足1.0CM。右乳内可见多发明显强化区。右腋窝可见肿大淋巴结,大者直径约0.8CM。肝实质内见两个低密度灶,边缘模糊,大者长径约1.6CM,增强后示强化。胆囊不大,壁不厚。胰腺、脾、双肾上腺及扫描野内双肾未见明显异常。腹腔胃小弯侧见多发小淋巴结,大者短径不足0.5CM。骨窗:扫描野内多个胸椎示混合性骨质破坏,成骨性改变为主。</t>
+          <t>1.结合病史，右肺下叶癌治疗后，较2014-11-26片略小2.双肺转移，较前变化不著3.右侧胸膜转移并右侧胸腔少量积液，较前变化不著4.右肺癌性淋巴管炎，较前变化不著5.肝转移，较前好转6.骨转移，成骨性病变较前增多7.右乳癌治疗后，较前变化不著8.右腋窝淋巴结稍大，较前缩小9.右肺下叶部分不张，较前好转10.左肺炎症11.腹腔多发小淋巴结，左肺门稍大淋巴结，较前变化不著右肺下叶背段见一不规则形软组织结节，截面约1.7CM×2.2CM，边缘毛糙伴毛刺，牵拉邻近胸膜凹陷，远端见索条影及小叶间隔增厚，增强后结节呈显著不均匀强化。双肺见多发结节灶，局部呈粟粒状改变，大者长径约0.5CM。右侧胸膜，叶间胸膜亦示增厚伴多发结节灶，增强后见强化。右肺部分肺组织实变。右侧胸腔见少量液性密度影。左锁上见小淋巴结，短径约0.4CM。左肺门见稍大淋巴结，短径不足1.0CM。右乳内可见多发明显强化区。右腋窝可见肿大淋巴结，大者直径约0.8CM。肝实质内见两个低密度灶，边缘模糊，大者长径约1.6CM，增强后示强化。胆囊不大，壁不厚。胰腺、脾、双肾上腺及扫描野内双肾未见明显异常。腹腔胃小弯侧见多发小淋巴结，大者短径不足0.5CM。骨窗：扫描野内多个胸椎示混合性骨质破坏，成骨性改变为主。</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -6843,7 +6843,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>左侧乳腺癌术后化疗后,对比2018-01-22CT:左侧乳腺术后缺失,左前胸壁未见明确肿物。右侧乳腺多发类结节灶,考虑转移瘤可能性大,较前稍增大。左侧腮腺、双颈、右侧锁骨上区、右侧腋窝、纵隔血管前间隙多发淋巴结,考虑转移,部分较前稍大。左肺上叶尖后段、右肺上叶尖段、右肺下叶前基底段类结节,考虑增殖灶,大致同前。甲状腺双叶及峡部类结节,结节性甲状腺肿可能,较前相仿。子宫体左前壁肌层类结节,考虑子宫肌瘤,较前相仿。左侧乳腺癌术后化疗后,对比2018-01-22CT:左侧乳腺术后缺失,左前胸壁未见明确肿物。右侧乳腺上象限见多发类结节灶,大者直径约15MM,边界欠清,部分融合,明显强化,部分较前稍增大。右锁骨上区、右侧腋窝、纵隔血管前间隙见多发淋巴结,大者短径约13MM,边界欠清,部分融合,密度欠均匀,增强扫描强化明显,较前稍大。颈部结构清晰,各血管充盈良好。甲状腺双叶及峡部体积增大,密度不均匀,见多个稍低密度灶,增强呈轻度不均匀强化,病灶内见斑点及斑片状致密灶。喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。双侧颌下腺、右侧腮腺大小形态正常,密度均匀。左侧腮腺、双颈部II-V区见多发淋巴结,边界不清,大者短径约17MM×12MM,明显强化,部分较前稍大。左肺上叶尖后段、右肺上叶尖段、右肺下叶前基底段胸膜下各见一类结节,大者直径约6MM,界清,轻度强化。气管及支气管分支通畅。双肺门及余纵隔、左侧腋窝未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚。肝脏形态、各叶比例在正常范围以内,其外形轮廓光整,未见明显异常密度灶,增强扫描未见异常强化影。肝内胆管未见扩张,其内未见结石影,胆囊不大,其内未见结石影,胆总管未见扩张,其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大,密度均匀。胰腺大小、形态未见异常,密度均匀。双肾及双肾上腺大小、形态未见异常,密度均匀。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。膀胱充盈良好,境界清楚。子宫体左前壁肌层见一类结节,直径约26MM,平扫呈等密度,增强扫描强化程度低于子宫肌层。子宫颈大小、形态未见异常。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。扫描范围内骨质未见破坏征象。</t>
+          <t>左侧乳腺癌术后化疗后，对比2018-01-22CT：左侧乳腺术后缺失，左前胸壁未见明确肿物。右侧乳腺多发类结节灶，考虑转移瘤可能性大，较前稍增大。左侧腮腺、双颈、右侧锁骨上区、右侧腋窝、纵隔血管前间隙多发淋巴结，考虑转移，部分较前稍大。左肺上叶尖后段、右肺上叶尖段、右肺下叶前基底段类结节，考虑增殖灶，大致同前。甲状腺双叶及峡部类结节，结节性甲状腺肿可能，较前相仿。子宫体左前壁肌层类结节，考虑子宫肌瘤，较前相仿。左侧乳腺癌术后化疗后，对比2018-01-22CT：左侧乳腺术后缺失，左前胸壁未见明确肿物。右侧乳腺上象限见多发类结节灶，大者直径约15MM，边界欠清，部分融合，明显强化，部分较前稍增大。右锁骨上区、右侧腋窝、纵隔血管前间隙见多发淋巴结，大者短径约13MM，边界欠清，部分融合，密度欠均匀，增强扫描强化明显，较前稍大。颈部结构清晰，各血管充盈良好。甲状腺双叶及峡部体积增大，密度不均匀，见多个稍低密度灶，增强呈轻度不均匀强化，病灶内见斑点及斑片状致密灶。喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。双侧颌下腺、右侧腮腺大小形态正常，密度均匀。左侧腮腺、双颈部II-V区见多发淋巴结，边界不清，大者短径约17MM×12MM，明显强化，部分较前稍大。左肺上叶尖后段、右肺上叶尖段、右肺下叶前基底段胸膜下各见一类结节，大者直径约6MM，界清，轻度强化。气管及支气管分支通畅。双肺门及余纵隔、左侧腋窝未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚。肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，未见明显异常密度灶，增强扫描未见异常强化影。肝内胆管未见扩张，其内未见结石影，胆囊不大，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。双肾及双肾上腺大小、形态未见异常，密度均匀。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。子宫体左前壁肌层见一类结节，直径约26MM，平扫呈等密度，增强扫描强化程度低于子宫肌层。子宫颈大小、形态未见异常。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。扫描范围内骨质未见破坏征象。</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -6860,7 +6860,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>空腹6小时以上,静脉注射显像剂,平静休息60MMIN后行全身PET及CT断层显像,PET图像经衰减校正及重建后,将PET及CT图像行多平面、多幅显示:右锁骨区、纵隔4R、7区及双肺门区见肿大伴浓聚淋巴结,部分呈融合状,较大者位于右肺门区,大小约2.2CM×1.2CM(PET测量),放射性摄取较高者位于右锁骨区,SUVMAX7.3;右肺上叶见一软组织结节,较大径线约2.1CM×1.3CM,伴放射性摄取增高,SUVMAX8.1,病变边缘见分叶、毛刺及胸膜牵拉征,周围见多发絮状影,右肺血管束及小叶间隔增粗呈网格状及模糊结节影;另左肺见多发小结节,较大径线约0.2-0.3CM,均未见明显放射性摄取;左肺下叶见多发索条影;余肺内未见放射性浓聚灶。余纵隔及左锁骨区未见异常肿大淋巴结或淋巴结浓聚。心肌显影清晰。气管居中。胸膜无增厚,胸水征阴性。双侧肩胛骨、左侧第2肋、胸骨、左侧第9后肋、脊柱多发椎体、骨盆、双侧股骨上段见多发放射性浓聚灶,SUVMAX17.0(位于右髂骨),同机CT局部见低密度骨质破坏区或片状密度增高影,部分骨质未见异常改变。T6椎体内见类圆形高密度结节,伴轻度放射性摄取,SUVMAX2.3。项韧带见条形钙化影。大脑形态如常,皮层各叶放射性分布均匀。皮层下各神经核团显影清晰,放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深,白质未见明显低密度影,中线无移位。脑室无扩大,基底节区显示对称。小脑显影如常,两侧小脑对称。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。甲状腺两叶不大,形态可,腺实质内未见异常放射性增高灶。双颈部未见明显异常淋巴结浓聚。胃充盈好,胃壁显影如常。肝脏形态可,轮廓光整,肝叶比例正常,肝右叶见钙化灶,肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常,密度均匀,胆囊壁无增厚。胰腺形态放射性分布尚好,胰管不扩张。脾脏增大,放射性分布均匀。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常,膀胱壁无增厚。前列腺大小正常,放射性分布大致正常。两侧腹股沟无异常淋巴结显示。右肩关节软组织放射性摄取轻度增高,SUVMAX2.3;余视野内皮肤及软组织内未见异常放射性摄取。1、①右肺上叶高代谢软组织结节,伴周围肺野炎症,符合肺癌表现;②右肺癌性淋巴管炎。左肺小结节,未见高代谢,随访。③右锁骨区、纵隔4R、7区及双肺门多发淋巴结转移。④多发骨转移。T6骨岛?建议定期随访。2、脑内未见异常代谢征象,必要时增强MRI检查,除外微小转移灶。3、左肺下叶索条影。肝右叶钙化灶。项韧带钙化。脾大。右肩关节软组织炎性或非特异性摄取。</t>
+          <t>空腹6小时以上，静脉注射显像剂，平静休息60MMIN后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：右锁骨区、纵隔4R、7区及双肺门区见肿大伴浓聚淋巴结，部分呈融合状，较大者位于右肺门区，大小约2.2CM×1.2CM(PET测量)，放射性摄取较高者位于右锁骨区，SUVMAX7.3；右肺上叶见一软组织结节，较大径线约2.1CM×1.3CM，伴放射性摄取增高，SUVMAX8.1，病变边缘见分叶、毛刺及胸膜牵拉征，周围见多发絮状影，右肺血管束及小叶间隔增粗呈网格状及模糊结节影；另左肺见多发小结节，较大径线约0.2-0.3CM，均未见明显放射性摄取；左肺下叶见多发索条影；余肺内未见放射性浓聚灶。余纵隔及左锁骨区未见异常肿大淋巴结或淋巴结浓聚。心肌显影清晰。气管居中。胸膜无增厚，胸水征阴性。双侧肩胛骨、左侧第2肋、胸骨、左侧第9后肋、脊柱多发椎体、骨盆、双侧股骨上段见多发放射性浓聚灶，SUVMAX17.0(位于右髂骨)，同机CT局部见低密度骨质破坏区或片状密度增高影，部分骨质未见异常改变。T6椎体内见类圆形高密度结节，伴轻度放射性摄取，SUVMAX2.3。项韧带见条形钙化影。大脑形态如常，皮层各叶放射性分布均匀。皮层下各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，两侧小脑对称。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。双颈部未见明显异常淋巴结浓聚。胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝右叶见钙化灶，肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。胰腺形态放射性分布尚好，胰管不扩张。脾脏增大，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常，膀胱壁无增厚。前列腺大小正常，放射性分布大致正常。两侧腹股沟无异常淋巴结显示。右肩关节软组织放射性摄取轻度增高，SUVMAX2.3；余视野内皮肤及软组织内未见异常放射性摄取。1、①右肺上叶高代谢软组织结节，伴周围肺野炎症，符合肺癌表现；②右肺癌性淋巴管炎。左肺小结节，未见高代谢，随访。③右锁骨区、纵隔4R、7区及双肺门多发淋巴结转移。④多发骨转移。T6骨岛?建议定期随访。2、脑内未见异常代谢征象，必要时增强MRI检查，除外微小转移灶。3、左肺下叶索条影。肝右叶钙化灶。项韧带钙化。脾大。右肩关节软组织炎性或非特异性摄取。</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -6882,7 +6882,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>肝脏表面光滑,各叶比例匀称,肝内见多发微小低密度结节灶,直径均小于1CM,增强后可见边缘强化;肝右后叶另见低密度小结节,增强后动脉期可见边缘结节样强化,门脉期向中央填充,呈高密度,肝内血管未见狭窄或充盈缺损;脾脏未见肿大,密度均匀;胆管未见扩张;胰腺及右肾无殊,左肾内见囊性无强化灶;后腹膜未见肿大淋巴结;腹盆腔内无积液。增强后子宫后壁可见相对低密度结节影;右侧附件区囊性灶。局部骶骨骨质密度改变。乳腺MT病例:肝内多发转移灶,病灶较(17-06-19MMR)缩小;肝右叶血管瘤,骶骨骨质改变,请结合骨扫描检查;左肾囊肿,子宫肌瘤可能,右侧附件区囊性灶。</t>
+          <t>肝脏表面光滑，各叶比例匀称，肝内见多发微小低密度结节灶，直径均小于1CM，增强后可见边缘强化；肝右后叶另见低密度小结节，增强后动脉期可见边缘结节样强化，门脉期向中央填充，呈高密度，肝内血管未见狭窄或充盈缺损；脾脏未见肿大，密度均匀；胆管未见扩张；胰腺及右肾无殊，左肾内见囊性无强化灶；后腹膜未见肿大淋巴结；腹盆腔内无积液。增强后子宫后壁可见相对低密度结节影；右侧附件区囊性灶。局部骶骨骨质密度改变。乳腺MT病例：肝内多发转移灶，病灶较(17-06-19MMR)缩小；肝右叶血管瘤，骶骨骨质改变，请结合骨扫描检查；左肾囊肿，子宫肌瘤可能，右侧附件区囊性灶。</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -6899,7 +6899,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>右下肺癌术后化疗后复查,对比2016-12-21片:右肺下叶术后缺失,支气管残端见少许金属影,周围肺野内见少许斑片灶,边界欠清。右中肺近膈面见少许片状影,边界清晰,内见充气支气管征,增强后呈明显强化。右上肺胸膜下见条索灶,边界清,与邻近胸膜粘连。余双肺纹理清晰,未见明确实质性病变。气管及余支气管分枝通畅,未见明显软组织肿物或受压变窄。血管前、右上气管旁及右肺门见多发肿大淋巴结,最大者约12MM×8MM,边界欠清,密度欠均匀,增强后呈明显不均匀强化,较前缩小。双侧胸腔未见积液。右侧胸膜稍增厚;左侧胸膜未见增厚。肝脏形态未见异常,其外形轮廓光整,密度欠均匀,肝S7见2个小囊性灶,较大直径约5MM,边界清晰,未见强化。肝S5、6、8见数个稍低密度灶,大者约12MM×8MM,边界欠清,增强后轻度强化。肝内胆管未见扩张,其内未见结石影。胆囊其内未见结石影。胆总管未见扩张,其内未见结石影。肝门区未见明确病变。门静脉未见异常。脾、胰腺大小、形态未见异常,密度均匀。右肾见一囊性灶,直径约8MM,边界清晰,未见强化。左肾及双肾上腺未见异常。腹膜后未见肿大淋巴结。颈双侧结构清晰,各血管充盈良好,甲状腺左叶见数个低密度结节,边界清,较大直径约2MM,增强后轻度强化。甲状腺右叶及峡部形态正常,密度均匀,未见占位性病变;喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称;双侧颌下腺、腮腺大小形态正常,密度均匀;颈双侧未见肿大淋巴结。双侧上颌窦粘膜稍增厚。左侧第7前肋见斑片状致密影,扫描所见其余骨质未见明确破坏征象。右下肺癌术后化疗后改变,术区周围斑片灶,较前相仿,考虑纤维增殖灶。右上肺胸膜索条灶,考虑炎性病变,较前相仿。右中肺节段性肺不张同前。血管前、右上气管旁及右肺门肿大淋巴结,考虑转移,较前缩小。肝S5、6、8稍低密度灶,较前稍增大、增多,考虑转移可能性大。肝S7小囊肿同前。右肾囊肿。甲状腺左叶低密度结节,考虑结节性甲状腺肿可能性大。双侧上颌窦炎。左侧第7前肋致密影,较前相仿,考虑良性病变可能性大。。</t>
+          <t>右下肺癌术后化疗后复查，对比2016-12-21片：右肺下叶术后缺失，支气管残端见少许金属影，周围肺野内见少许斑片灶，边界欠清。右中肺近膈面见少许片状影，边界清晰，内见充气支气管征，增强后呈明显强化。右上肺胸膜下见条索灶，边界清，与邻近胸膜粘连。余双肺纹理清晰，未见明确实质性病变。气管及余支气管分枝通畅，未见明显软组织肿物或受压变窄。血管前、右上气管旁及右肺门见多发肿大淋巴结，最大者约12MM×8MM，边界欠清，密度欠均匀，增强后呈明显不均匀强化，较前缩小。双侧胸腔未见积液。右侧胸膜稍增厚；左侧胸膜未见增厚。肝脏形态未见异常，其外形轮廓光整，密度欠均匀，肝S7见2个小囊性灶，较大直径约5MM，边界清晰，未见强化。肝S5、6、8见数个稍低密度灶，大者约12MM×8MM，边界欠清，增强后轻度强化。肝内胆管未见扩张，其内未见结石影。胆囊其内未见结石影。胆总管未见扩张，其内未见结石影。肝门区未见明确病变。门静脉未见异常。脾、胰腺大小、形态未见异常，密度均匀。右肾见一囊性灶，直径约8MM，边界清晰，未见强化。左肾及双肾上腺未见异常。腹膜后未见肿大淋巴结。颈双侧结构清晰，各血管充盈良好，甲状腺左叶见数个低密度结节，边界清，较大直径约2MM，增强后轻度强化。甲状腺右叶及峡部形态正常，密度均匀，未见占位性病变；喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称；双侧颌下腺、腮腺大小形态正常，密度均匀；颈双侧未见肿大淋巴结。双侧上颌窦粘膜稍增厚。左侧第7前肋见斑片状致密影，扫描所见其余骨质未见明确破坏征象。右下肺癌术后化疗后改变，术区周围斑片灶，较前相仿，考虑纤维增殖灶。右上肺胸膜索条灶，考虑炎性病变，较前相仿。右中肺节段性肺不张同前。血管前、右上气管旁及右肺门肿大淋巴结，考虑转移，较前缩小。肝S5、6、8稍低密度灶，较前稍增大、增多，考虑转移可能性大。肝S7小囊肿同前。右肾囊肿。甲状腺左叶低密度结节，考虑结节性甲状腺肿可能性大。双侧上颌窦炎。左侧第7前肋致密影，较前相仿，考虑良性病变可能性大。。</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -6916,7 +6916,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>右肺上叶后段见一不规则结节影,大小约2.1CM×2.0CM,边缘见浅分叶及短毛刺,内见细支气管充气,邻近胸膜牵拉,右肺上叶(IM26)见一小结节状钙化,右肺上叶(IM27)及左下肺(IM37)见小结节灶,较大约0.6CM,边缘清晰;两下肺见少许斑片索条影,所见各支气管腔通畅,纵隔内未见肿大淋巴结,两侧胸膜稍增厚,胸腔内无积液,甲状腺右侧叶明显增大,密度不均匀,内见钙化,气管明显受压左移。冠脉钙化。冠脉走行区致密影。右上肺MT,两肺小结节,同2018-03-22片大致相仿;两肺少许慢性炎症及陈旧灶;冠脉病变。甲状腺右叶病变伴气管受压左移,请结合超声。</t>
+          <t>右肺上叶后段见一不规则结节影，大小约2.1CM×2.0CM，边缘见浅分叶及短毛刺，内见细支气管充气，邻近胸膜牵拉，右肺上叶(IM26)见一小结节状钙化，右肺上叶(IM27)及左下肺(IM37)见小结节灶，较大约0.6CM，边缘清晰；两下肺见少许斑片索条影，所见各支气管腔通畅，纵隔内未见肿大淋巴结，两侧胸膜稍增厚，胸腔内无积液，甲状腺右侧叶明显增大，密度不均匀，内见钙化，气管明显受压左移。冠脉钙化。冠脉走行区致密影。右上肺MT，两肺小结节，同2018-03-22片大致相仿；两肺少许慢性炎症及陈旧灶；冠脉病变。甲状腺右叶病变伴气管受压左移，请结合超声。</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -6934,7 +6934,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>右乳癌术后:右侧腋窝、右侧侧胸壁、右侧第4、5肋间多发结节,考虑转移瘤。右侧腋窝类圆形低密度灶,考虑术后包裹性积液可能性大。双肺多发转移瘤。上腹部未见明确病变。双颈、双锁上小淋巴结。右乳癌术后:右侧乳腺术后缺失,右侧腋窝右侧侧胸壁、右侧第4、5肋间见多发结节,边界不清,相互融合,大小难以测量,增强扫描呈不均匀明显强化。右侧腋窝见2个类圆形低密度灶,较大者约46MM×40MM,边界清晰,增强扫描边缘轻度强化。双肺各叶见弥漫分布多发结节,最大者约15MM×15MM,大部分见空洞形成,增强扫描呈轻度强化。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜未见增厚、粘连。肝脏形态、各叶比例未见异常,其外形轮廓光整,密度均匀,增强扫描未见异常强化灶。肝内外胆管未见异常,其内未见结石,胆囊未见异常。肝门区未见异常。门静脉未见异常。脾脏、胰腺大小、形态、密度未见异常,增强扫描未见异常强化。双肾及双肾上腺未见异常。腹主动脉旁未见肿大淋巴结。喉咽腔形态未见异常,双侧梨状窝对称。双侧真假声带未见增厚,前联合未见增厚。双侧颌下腺、腮腺大小形态未见异常,密度均匀。甲状腺双叶及峡部形态未见异常,密度均匀,未见占位性病变。双颈I~V区、双锁上见数个小淋巴结,最大者约10MM×7MM,边界清晰,增强扫描呈轻度强化。扫描范围内所见骨质未见明确破坏征象。</t>
+          <t>右乳癌术后：右侧腋窝、右侧侧胸壁、右侧第4、5肋间多发结节，考虑转移瘤。右侧腋窝类圆形低密度灶，考虑术后包裹性积液可能性大。双肺多发转移瘤。上腹部未见明确病变。双颈、双锁上小淋巴结。右乳癌术后：右侧乳腺术后缺失，右侧腋窝右侧侧胸壁、右侧第4、5肋间见多发结节，边界不清，相互融合，大小难以测量，增强扫描呈不均匀明显强化。右侧腋窝见2个类圆形低密度灶，较大者约46MM×40MM，边界清晰，增强扫描边缘轻度强化。双肺各叶见弥漫分布多发结节，最大者约15MM×15MM，大部分见空洞形成，增强扫描呈轻度强化。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜未见增厚、粘连。肝脏形态、各叶比例未见异常，其外形轮廓光整，密度均匀，增强扫描未见异常强化灶。肝内外胆管未见异常，其内未见结石，胆囊未见异常。肝门区未见异常。门静脉未见异常。脾脏、胰腺大小、形态、密度未见异常，增强扫描未见异常强化。双肾及双肾上腺未见异常。腹主动脉旁未见肿大淋巴结。喉咽腔形态未见异常，双侧梨状窝对称。双侧真假声带未见增厚，前联合未见增厚。双侧颌下腺、腮腺大小形态未见异常，密度均匀。甲状腺双叶及峡部形态未见异常，密度均匀，未见占位性病变。双颈I~V区、双锁上见数个小淋巴结，最大者约10MM×7MM，边界清晰，增强扫描呈轻度强化。扫描范围内所见骨质未见明确破坏征象。</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -6951,7 +6951,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>食管MT术后病例:考虑为胸廓入口水平吻合口右旁MT复发伴左侧锁骨区淋巴结转移,右肺斜裂转移;两肺下叶慢性炎性小结节可能,请随访;左肺上叶陈旧灶。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼外肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET/CT图像示左侧锁骨区见糖代谢异常增高的淋巴结,大小约为15.8MM×12.8MM,最大SUV值为25.9;双侧颈部、右侧锁骨区无明显糖代谢异常增高及肿大淋巴结;口咽、喉咽部无殊;甲状腺无肿大,未见糖代谢异常增高及占位。胸部PET/CT图像示食管MT术后,右侧胸腔胃,吻合口见金属缝线影,胸廓入口水平吻合口右旁见糖代谢异常增高的肿块影,大小约为22.5MM×15.5MM,最大SUV值为26.1;余纵隔无糖代谢异常增高及肿大淋巴结;右肺斜裂处见糖代谢异常增高的呈融合状的结节,大小约为25.3MM×14.0MM,最大SUV值为11.9;右肺下叶后基底段见糖代谢增高的结节,大小约为15.8MM×10.3MM,最大SUV值为2.2;左肺下叶后基底段及右肺下叶前基底段另见直径5.0MM以下的微小结节,未见明显糖代谢异常增高;左肺上叶见钙化灶;各级支气管腔通畅;双肺门影不大;双侧胸腔无积液;心脏无明显增大;双侧腋窝无糖代谢异常增高及肿大淋巴结。腹部PET图像示胃壁呈生理性糖代谢增强;肠道呈生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整,各叶比例匀称,实质内未见明显占位;肝内外胆管无扩张;脾脏不大,密度均,未见明显占位;胆囊、胰、双肾、肾上腺无殊;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚;肠道呈生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁光滑无增厚;双侧精囊腺形态可;双侧膀胱精囊三角对称;前列腺饱满,内见钙化灶;盆腔内未见占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET图像未见糖代谢异常增高。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗示部分颈、胸、腰、骶椎体边缘及椎小关节骨质增生,考虑为退行性变。</t>
+          <t>食管MT术后病例：考虑为胸廓入口水平吻合口右旁MT复发伴左侧锁骨区淋巴结转移，右肺斜裂转移；两肺下叶慢性炎性小结节可能，请随访；左肺上叶陈旧灶。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET/CT图像示左侧锁骨区见糖代谢异常增高的淋巴结，大小约为15.8MM×12.8MM，最大SUV值为25.9；双侧颈部、右侧锁骨区无明显糖代谢异常增高及肿大淋巴结；口咽、喉咽部无殊；甲状腺无肿大，未见糖代谢异常增高及占位。胸部PET/CT图像示食管MT术后，右侧胸腔胃，吻合口见金属缝线影，胸廓入口水平吻合口右旁见糖代谢异常增高的肿块影，大小约为22.5MM×15.5MM，最大SUV值为26.1；余纵隔无糖代谢异常增高及肿大淋巴结；右肺斜裂处见糖代谢异常增高的呈融合状的结节，大小约为25.3MM×14.0MM，最大SUV值为11.9；右肺下叶后基底段见糖代谢增高的结节，大小约为15.8MM×10.3MM，最大SUV值为2.2；左肺下叶后基底段及右肺下叶前基底段另见直径5.0MM以下的微小结节，未见明显糖代谢异常增高；左肺上叶见钙化灶；各级支气管腔通畅；双肺门影不大；双侧胸腔无积液；心脏无明显增大；双侧腋窝无糖代谢异常增高及肿大淋巴结。腹部PET图像示胃壁呈生理性糖代谢增强；肠道呈生理性糖代谢增强；肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内未见明显占位；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；胆囊、胰、双肾、肾上腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚；肠道呈生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁光滑无增厚；双侧精囊腺形态可；双侧膀胱精囊三角对称；前列腺饱满，内见钙化灶；盆腔内未见占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见糖代谢异常增高。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示部分颈、胸、腰、骶椎体边缘及椎小关节骨质增生，考虑为退行性变。</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -6968,7 +6968,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>双侧胸廓对称,肺野透过度不均,右肺下叶后段见软组织密度团块影,大小约4.8CM×3.7CM,右肺下叶后基底段支气管截断,病灶周围可见血管集束征,与邻近胸膜粘连,周围肺野散在多发条片影。右侧胸腔内见少量积液征象,胸壁见引流管影。双肺见多发大小不等结节影,大者径约0.5CM。左侧支气管通畅。纵隔居中,右肺门及纵隔内见多发肿大淋巴结。心脏大小正常。所示部分胸椎骨质欠规整,边缘清楚。1.右肺下叶占位性病变,考虑周围型肺癌可能伴纵隔及右肺门淋巴结转移,请结合临床;2.双肺多发小结节,考虑转移瘤可能,随诊;3.右侧胸腔积液引流术后;4.所示部分胸椎骨质骨质破坏,转移可能。</t>
+          <t>双侧胸廓对称，肺野透过度不均，右肺下叶后段见软组织密度团块影，大小约4.8CM×3.7CM，右肺下叶后基底段支气管截断，病灶周围可见血管集束征，与邻近胸膜粘连，周围肺野散在多发条片影。右侧胸腔内见少量积液征象，胸壁见引流管影。双肺见多发大小不等结节影，大者径约0.5CM。左侧支气管通畅。纵隔居中，右肺门及纵隔内见多发肿大淋巴结。心脏大小正常。所示部分胸椎骨质欠规整，边缘清楚。1.右肺下叶占位性病变，考虑周围型肺癌可能伴纵隔及右肺门淋巴结转移，请结合临床；2.双肺多发小结节，考虑转移瘤可能，随诊；3.右侧胸腔积液引流术后；4.所示部分胸椎骨质骨质破坏，转移可能。</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -6990,7 +6990,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>1.结合临床,卵巢癌术后2.右肺上叶占位,考虑为中心型肺癌伴阻塞性炎症,侵及右肺动脉,右肺门、纵隔、右侧锁骨上淋巴结转移3.脑转移4.左肺门淋巴结肿大,建议观察5.肝囊肿右肺上叶支气管截断,局部见一软组织密度肿块,大小约3.3CM×2.6CM,病变远端右肺上叶见实变的肺组织影,增强后轻度强化,局部包埋右肺动脉。双肺门10区、纵隔内4R、7区、8R、9R、4R、4L、5区、2R、3A、右侧锁骨上1R见多发增大淋巴结,部分相互融合,大者短径约2.0CM。双侧胸腔内未见液性密度影。肝脏形态、大小可,实质内见囊性密度灶,大者直径约2.3CM,边缘清晰。肝内外胆管未见扩张。胆囊充盈可,壁不厚。胰腺走行自然,形态、大小、密度未见异常。脾、双肾及肾上腺形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。子宫及双侧附件术后缺失,阴道残端未见显著增厚。膀胱充盈好,壁略示增厚。盆腔内未见显著增大淋巴结。盆腔内未见液性密度影。左侧额叶见一直径约1.9CM结节灶,边缘清晰,增强后显著不均匀强化。病变周围见片状低密度水肿带。颅骨未见显著骨质破坏。</t>
+          <t>1.结合临床，卵巢癌术后2.右肺上叶占位，考虑为中心型肺癌伴阻塞性炎症，侵及右肺动脉，右肺门、纵隔、右侧锁骨上淋巴结转移3.脑转移4.左肺门淋巴结肿大，建议观察5.肝囊肿右肺上叶支气管截断，局部见一软组织密度肿块，大小约3.3CM×2.6CM，病变远端右肺上叶见实变的肺组织影，增强后轻度强化，局部包埋右肺动脉。双肺门10区、纵隔内4R、7区、8R、9R、4R、4L、5区、2R、3A、右侧锁骨上1R见多发增大淋巴结，部分相互融合，大者短径约2.0CM。双侧胸腔内未见液性密度影。肝脏形态、大小可，实质内见囊性密度灶，大者直径约2.3CM，边缘清晰。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰腺走行自然，形态、大小、密度未见异常。脾、双肾及肾上腺形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。子宫及双侧附件术后缺失，阴道残端未见显著增厚。膀胱充盈好，壁略示增厚。盆腔内未见显著增大淋巴结。盆腔内未见液性密度影。左侧额叶见一直径约1.9CM结节灶，边缘清晰，增强后显著不均匀强化。病变周围见片状低密度水肿带。颅骨未见显著骨质破坏。</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -7012,7 +7012,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>左肺下叶近后胸壁下示大片状低密度区,内示斑片状气体影,边界欠清,其下方可见不张肺组织,两者分界不清,不张肺组织内可见低密度粘液栓影,左肺门区部分支气管管腔显示不清。左肺近心包旁示直径约2.2CM软组织密度结节灶(5-46),边界较清,强化较均,局部与心包相贴。左肺上叶、右肺下叶示小结节灶(5-24、49),密度较低,增强局部可见强化,边界较清。余双肺示小类结节灶(5-23、28、36)。左侧胸膜略增厚。左侧锁骨上、纵隔内双上气管旁、腔静脉后气管前间隙、主肺动脉窗区、隆突下及左肺门示小或增大淋巴结,大者短径约1.6CM,部分呈不均质强化。心包及左侧胸腔示少许液性密度影。肝右叶近包膜下示长径约0.9CM低密度灶,边界欠清。另肝内示斑片状致密影。左肾示长径约1.3CM低密度灶,边界欠清。胆囊壁略增厚。胰腺、脾及双侧肾上腺未见明确异常。腹腔腹膜后未见肿大淋巴结。左侧肱骨、部分椎骨示溶骨性、成骨性破坏。1.结合临床,考虑左肺癌并阻塞性肺不张、左侧锁骨上、左肺门及纵隔淋巴结转移;骨转移。2.左肺心包旁结节灶,转移及原发不易鉴别,请结合其他检查。3.双肺小结节灶,转移不除外;双肺小类结节灶,建议观察。4.左侧胸膜略增厚。5.心包及左侧胸腔少量积液。6.肝及左肾低密度灶,请结合前片或观察除外转移。7.肝内钙化灶。</t>
+          <t>左肺下叶近后胸壁下示大片状低密度区，内示斑片状气体影，边界欠清，其下方可见不张肺组织，两者分界不清，不张肺组织内可见低密度粘液栓影，左肺门区部分支气管管腔显示不清。左肺近心包旁示直径约2.2CM软组织密度结节灶(5-46)，边界较清，强化较均，局部与心包相贴。左肺上叶、右肺下叶示小结节灶(5-24、49)，密度较低，增强局部可见强化，边界较清。余双肺示小类结节灶(5-23、28、36)。左侧胸膜略增厚。左侧锁骨上、纵隔内双上气管旁、腔静脉后气管前间隙、主肺动脉窗区、隆突下及左肺门示小或增大淋巴结，大者短径约1.6CM，部分呈不均质强化。心包及左侧胸腔示少许液性密度影。肝右叶近包膜下示长径约0.9CM低密度灶，边界欠清。另肝内示斑片状致密影。左肾示长径约1.3CM低密度灶，边界欠清。胆囊壁略增厚。胰腺、脾及双侧肾上腺未见明确异常。腹腔腹膜后未见肿大淋巴结。左侧肱骨、部分椎骨示溶骨性、成骨性破坏。1.结合临床，考虑左肺癌并阻塞性肺不张、左侧锁骨上、左肺门及纵隔淋巴结转移；骨转移。2.左肺心包旁结节灶，转移及原发不易鉴别，请结合其他检查。3.双肺小结节灶，转移不除外；双肺小类结节灶，建议观察。4.左侧胸膜略增厚。5.心包及左侧胸腔少量积液。6.肝及左肾低密度灶，请结合前片或观察除外转移。7.肝内钙化灶。</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -7029,7 +7029,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>直肠上动脉旁及直肠系膜可见多发小淋巴结,较大约6MM×5MM(SE4IM1),数目小于7枚。双侧髂血管旁及腹股沟可见少许小淋巴结,较大约12MM×4MM(SE4IM15)。直肠下段可见溃疡型病变,肠壁不规则增厚,较厚处约13MM(SE4IM31),增强扫描明显均可见强化,病变侵透肌层,外膜面毛糙,直肠系膜内可见多发索条影,邻近前缘可见结节状灶(SE4IM29),与阴道后壁关系密切,下缘达肛提肌与直肠交界水平,与肛门内括约肌分界不清,与双侧肛提肌、肛门外括约肌分界尚清。子宫前倾位,宫颈可见多发长T1长T2信号灶,边清无强化,较大约10MM×9MM(SE4IM16),子宫肌层可见短T2信号灶,较大约13MM×11MM(SE3IM13),增强扫描强化同子宫肌层。双侧附件区未见异常。膀胱充盈差,膀胱壁未见异常增厚。盆腔少量积液。扫及诸骨骨质未见破坏征象。直肠下段占位,考虑直肠癌,肛门内括约肌受累,侵犯阴道待排。直肠上动脉旁及直肠系膜多发小淋巴结,转移不除外。子宫肌瘤,宫颈多发纳囊。盆腔少量积液。</t>
+          <t>直肠上动脉旁及直肠系膜可见多发小淋巴结，较大约6MM×5MM(SE4IM1)，数目小于7枚。双侧髂血管旁及腹股沟可见少许小淋巴结，较大约12MM×4MM(SE4IM15)。直肠下段可见溃疡型病变，肠壁不规则增厚，较厚处约13MM(SE4IM31)，增强扫描明显均可见强化，病变侵透肌层，外膜面毛糙，直肠系膜内可见多发索条影，邻近前缘可见结节状灶(SE4IM29)，与阴道后壁关系密切，下缘达肛提肌与直肠交界水平，与肛门内括约肌分界不清，与双侧肛提肌、肛门外括约肌分界尚清。子宫前倾位，宫颈可见多发长T1长T2信号灶，边清无强化，较大约10MM×9MM(SE4IM16)，子宫肌层可见短T2信号灶，较大约13MM×11MM(SE3IM13)，增强扫描强化同子宫肌层。双侧附件区未见异常。膀胱充盈差，膀胱壁未见异常增厚。盆腔少量积液。扫及诸骨骨质未见破坏征象。直肠下段占位，考虑直肠癌，肛门内括约肌受累，侵犯阴道待排。直肠上动脉旁及直肠系膜多发小淋巴结，转移不除外。子宫肌瘤，宫颈多发纳囊。盆腔少量积液。</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -7051,7 +7051,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>右乳腺癌治疗后复查,对比2016-11-25片:乳腺癌治疗后,左侧前胸壁局部皮肤结节状、条片状增厚,考虑复发,较前缩小。左侧前胸壁皮下结节,较前稍缩小。右侧乳腺多发肿块,考虑转移,较前缩小。右侧腋窝、胸骨上窝多发肿大淋巴结,考虑转移,较前缩小。隆突下淋巴结,较前缩小,考虑转移可能性大。肝S4小囊性病变,较前稍缩小。左肾囊肿。左肺上叶病变,考虑放射性肺炎。双侧锁骨头、胸骨及多发椎体骨质破坏,考虑转移瘤,部分病灶较前稍增大。右侧第1、2前肋、第6~8肋腋段不同程度骨质破坏,考虑转移可能性大,较前变化不明显。右乳腺癌治疗后复查,对比2016-11-25片:左侧乳腺术后缺失,左侧前胸壁局部皮肤呈条片状增厚,最大约35MM×5MM,较前缩小。左侧前胸壁皮下(SE5-15)见一结节影,大小约6MM×5MM,可见强化,较前稍缩小。左侧腋窝见少许条索影,未见肿大淋巴结。右侧乳腺见多个不均匀强化结节,边界欠清,大者约23MM×12MM,较前缩小。右侧腋窝、胸骨上窝多发肿大淋巴结,最大约21MM×18MM,边界欠清,密度不均匀,增强后不均匀轻中度强化,较前缩小。左上肺近前胸壁处见散在小斑片灶,边界欠清,较前相仿,余肺未见实质性病变。气管及支气管分支通畅,未见明显软组织肿物或受压变窄。隆突下见一稍大淋巴结,大小约12MM×6MM,不均匀强化,较前稍缩小。双侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态、各叶比例未见异常,轮廓欠光整;肝S4见一小囊性病变,直径约3MM,增强扫描未见强化,较前缩小。肝内胆管正常,其内未见结石影,胆囊不大,内未见结石,胆总管未见扩张,其内未见结石影。肝门区、门静脉所见正常。脾大小正常,密度均匀,脾门区见一结节影,直径约4MM,密度与强化方式与脾脏相似。胰腺大小、形态正常,密度均匀。左肾见类圆形囊性灶,直径约7MM,边界清楚,未见强化。右肾、双肾上腺未见异常。腹主动脉旁未见明显肿大淋巴结。胸骨、双侧锁骨头见不规则骨质破坏,周围见软组织肿块形成,增强扫描轻度强化,较前变化不明显。扫描范围内多个椎体内见类圆形、结节样骨质密度增高灶,边界模糊,密度欠均匀,与前片对比,部分病灶范围较前增大。右侧第1、2前肋、第6~8肋腋段见不同程度骨质破坏,大致同前。</t>
+          <t>右乳腺癌治疗后复查，对比2016-11-25片：乳腺癌治疗后，左侧前胸壁局部皮肤结节状、条片状增厚，考虑复发，较前缩小。左侧前胸壁皮下结节，较前稍缩小。右侧乳腺多发肿块，考虑转移，较前缩小。右侧腋窝、胸骨上窝多发肿大淋巴结，考虑转移，较前缩小。隆突下淋巴结，较前缩小，考虑转移可能性大。肝S4小囊性病变，较前稍缩小。左肾囊肿。左肺上叶病变，考虑放射性肺炎。双侧锁骨头、胸骨及多发椎体骨质破坏，考虑转移瘤，部分病灶较前稍增大。右侧第1、2前肋、第6~8肋腋段不同程度骨质破坏，考虑转移可能性大，较前变化不明显。右乳腺癌治疗后复查，对比2016-11-25片：左侧乳腺术后缺失，左侧前胸壁局部皮肤呈条片状增厚，最大约35MM×5MM，较前缩小。左侧前胸壁皮下(SE5-15)见一结节影，大小约6MM×5MM，可见强化，较前稍缩小。左侧腋窝见少许条索影，未见肿大淋巴结。右侧乳腺见多个不均匀强化结节，边界欠清，大者约23MM×12MM，较前缩小。右侧腋窝、胸骨上窝多发肿大淋巴结，最大约21MM×18MM，边界欠清，密度不均匀，增强后不均匀轻中度强化，较前缩小。左上肺近前胸壁处见散在小斑片灶，边界欠清，较前相仿，余肺未见实质性病变。气管及支气管分支通畅，未见明显软组织肿物或受压变窄。隆突下见一稍大淋巴结，大小约12MM×6MM，不均匀强化，较前稍缩小。双侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态、各叶比例未见异常，轮廓欠光整；肝S4见一小囊性病变，直径约3MM，增强扫描未见强化，较前缩小。肝内胆管正常，其内未见结石影，胆囊不大，内未见结石，胆总管未见扩张，其内未见结石影。肝门区、门静脉所见正常。脾大小正常，密度均匀，脾门区见一结节影，直径约4MM，密度与强化方式与脾脏相似。胰腺大小、形态正常，密度均匀。左肾见类圆形囊性灶，直径约7MM，边界清楚，未见强化。右肾、双肾上腺未见异常。腹主动脉旁未见明显肿大淋巴结。胸骨、双侧锁骨头见不规则骨质破坏，周围见软组织肿块形成，增强扫描轻度强化，较前变化不明显。扫描范围内多个椎体内见类圆形、结节样骨质密度增高灶，边界模糊，密度欠均匀，与前片对比，部分病灶范围较前增大。右侧第1、2前肋、第6~8肋腋段见不同程度骨质破坏，大致同前。</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -7068,7 +7068,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>空腹6H以上,静脉注射18F-FDG,静息约60MMIN后行全身PET/CT断层显像,影像清晰。右乳腺癌术后:右侧乳腺缺如。左侧乳腺放射性分布未见明显异常。右中肺近肺门肿块影放射性浓聚,SUV约17.5,大小约2.9CM×4.9CM。右中肺不张,放射性略浓密。双肺多个结节及小斑片影放射性浓聚,SUV最高约16.9,最大约1.5CM×2.7CM。纵隔右上、双下气管旁、主动脉旁、主动脉下、隆突下、食管旁及双肺门多个淋巴结放射性浓聚,SUV最高约18.4,最大约1.3CM×1.9CM。左腋窝数个淋巴结放射性浓聚,SUV最高约8.6,最大约0.8CM×0.8CM。右侧腋窝未见肿大淋巴结及异常放射性分布。右侧胸腔积液。所见双侧脑实质密度、形态正常,放射性分布均匀、对称,诸脑室、脑池、脑沟、脑裂未见异常,中线结构居中。鼻咽、口咽及喉咽结构及放射性分布未见明显异常。额窦、蝶窦、筛窦及双侧上颌窦结构及放射性分布未见明显异常。甲状腺放射性分布未见异常。双上颈小淋巴结放射性分布未见明显异常。右锁上数个淋巴结放射性浓聚,SUV最高约16.2,最大约1.6CM×1.6CM。肝脏数个结节放射性浓聚,SUV最高约17.6,最大约1.9CM×1.9CM。肝内、外胆管未见扩张。胆囊、胃及十二指肠放射性分布未见明显异常。右肾上腺增粗,放射性浓聚,SUV约15.0。左肾上腺略增粗,放射性浓密。右肾盂点状钙化影放射性缺损,CT值约325HU。脾脏、胰腺、左肾形态、结构及放射性分布未见异常。肝门区淋巴结放射性浓聚,SUV约16.6,大小约2.0CM×2.5CM。腹腔见数个结节影,放射性浓聚,SUV最高约9.5,最大约0.8CM×0.8CM,局部与周围肠管分界不清。双侧附件区囊状低密度影放射性稀疏。膀胱、子宫及肠管等形态、结构及放射性分布未见明显异常。双髂血管旁及双腹股沟未见肿大淋巴结及异常放射性分布。蝶骨、枕骨、左锁骨、双侧部分肋骨、双侧肩胛骨、胸骨、多个颈椎、胸椎、腰椎、骶骨、双侧盆骨、双侧肱骨及双侧股骨见多个放射性浓聚灶,SUV最高约23.9,局部见骨质破坏,局部见软组织形成,以胸骨体为甚。右胸大肌及前下腹壁皮下数个结节放射性浓密,最大约0.6CM×0.6CM。右乳腺癌术后,术区代谢未见明显异常。右中肺病灶代谢活跃,考虑恶性病变,原发可能性大;右锁上、纵隔、双肺门、左腋窝及肝门区多个淋巴结代谢活跃,双肺多发病灶代谢活跃,肝脏多发病灶代谢活跃,右肾上腺病灶代谢活跃,全身多发骨病灶代谢活跃,腹腔数个结节代谢活跃,考虑转移瘤;右胸大肌及前下腹壁皮下数个结节代谢较活跃,疑转移瘤;左肾上腺略增粗,代谢较活跃,转移瘤待排;右侧胸腔积液。右肾盂小结石。双侧附件区囊状低密度影代谢低下,疑生理性改变。</t>
+          <t>空腹6H以上，静脉注射18F-FDG，静息约60MMIN后行全身PET/CT断层显像，影像清晰。右乳腺癌术后：右侧乳腺缺如。左侧乳腺放射性分布未见明显异常。右中肺近肺门肿块影放射性浓聚，SUV约17.5，大小约2.9CM×4.9CM。右中肺不张，放射性略浓密。双肺多个结节及小斑片影放射性浓聚，SUV最高约16.9，最大约1.5CM×2.7CM。纵隔右上、双下气管旁、主动脉旁、主动脉下、隆突下、食管旁及双肺门多个淋巴结放射性浓聚，SUV最高约18.4，最大约1.3CM×1.9CM。左腋窝数个淋巴结放射性浓聚，SUV最高约8.6，最大约0.8CM×0.8CM。右侧腋窝未见肿大淋巴结及异常放射性分布。右侧胸腔积液。所见双侧脑实质密度、形态正常，放射性分布均匀、对称，诸脑室、脑池、脑沟、脑裂未见异常，中线结构居中。鼻咽、口咽及喉咽结构及放射性分布未见明显异常。额窦、蝶窦、筛窦及双侧上颌窦结构及放射性分布未见明显异常。甲状腺放射性分布未见异常。双上颈小淋巴结放射性分布未见明显异常。右锁上数个淋巴结放射性浓聚，SUV最高约16.2，最大约1.6CM×1.6CM。肝脏数个结节放射性浓聚，SUV最高约17.6，最大约1.9CM×1.9CM。肝内、外胆管未见扩张。胆囊、胃及十二指肠放射性分布未见明显异常。右肾上腺增粗，放射性浓聚，SUV约15.0。左肾上腺略增粗，放射性浓密。右肾盂点状钙化影放射性缺损，CT值约325HU。脾脏、胰腺、左肾形态、结构及放射性分布未见异常。肝门区淋巴结放射性浓聚，SUV约16.6，大小约2.0CM×2.5CM。腹腔见数个结节影，放射性浓聚，SUV最高约9.5，最大约0.8CM×0.8CM，局部与周围肠管分界不清。双侧附件区囊状低密度影放射性稀疏。膀胱、子宫及肠管等形态、结构及放射性分布未见明显异常。双髂血管旁及双腹股沟未见肿大淋巴结及异常放射性分布。蝶骨、枕骨、左锁骨、双侧部分肋骨、双侧肩胛骨、胸骨、多个颈椎、胸椎、腰椎、骶骨、双侧盆骨、双侧肱骨及双侧股骨见多个放射性浓聚灶，SUV最高约23.9，局部见骨质破坏，局部见软组织形成，以胸骨体为甚。右胸大肌及前下腹壁皮下数个结节放射性浓密，最大约0.6CM×0.6CM。右乳腺癌术后，术区代谢未见明显异常。右中肺病灶代谢活跃，考虑恶性病变，原发可能性大；右锁上、纵隔、双肺门、左腋窝及肝门区多个淋巴结代谢活跃，双肺多发病灶代谢活跃，肝脏多发病灶代谢活跃，右肾上腺病灶代谢活跃，全身多发骨病灶代谢活跃，腹腔数个结节代谢活跃，考虑转移瘤；右胸大肌及前下腹壁皮下数个结节代谢较活跃，疑转移瘤；左肾上腺略增粗，代谢较活跃，转移瘤待排；右侧胸腔积液。右肾盂小结石。双侧附件区囊状低密度影代谢低下，疑生理性改变。</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -7085,7 +7085,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>考虑为右肺下叶前基底段周围型MT伴右侧肺门淋巴结转移可能,纵隔气管隆突下淋巴结转移不除外,请结合临床;两肺胸膜旁慢性炎性结节可能,请随访;两肺轻度气肿;肝脏多发囊肿;胆囊结石;左肾小囊肿。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼外肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。筛窦、双侧蝶窦和上颌窦粘膜增厚,考虑为炎症。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结;口咽、喉咽部无占位;甲状腺无肿大,密度欠均匀。胸部PET/CT图像示右肺下叶前基底段见大小约为20.0MM×15.5MM、糖代谢增高的软组织结节,平均CT值约为17.4HU,最大SUV值约为7.1,边缘见细小毛刺,牵拉毗邻斜裂;两肺上叶和右肺下叶胸膜旁见数枚小结节,较大者位于右肺下叶前基底段胸膜旁,形态不规则,长径约为5.5MM,最大SUV值约为0.6;两肺另见少许透亮无纹理区;右侧肺门见数枚糖代谢增高的淋巴结,糖代谢较高者大小约为10.0MM×9.0MM,平均CT值约为34.2HU,最大SUV值约为6.5;纵隔气管隆突下右主支气管旁见大小约为10.0MM×6.6MM、糖代谢增高的淋巴结,平均CT值约为39.5HU,最大SUV值约为4.5;左肺门无殊;双侧胸腔无积液;心脏无明显增大;双侧腋窝无明显糖代谢异常增高和肿大淋巴结。腹部PET/CT图像示肝脏表面光整,各叶比例匀称,肝脏实质内见数枚囊性灶,较大者位于右后下叶,大小约为15.5MM×11.0MM,平均CT值约为16.0HU,最大SUV值约为1.3;肝内外胆管无扩张;胆囊内见致密小结节;左肾上极见直径约为6.0MM囊性低密度灶,平均CT值约为10.3HU,最大SUV值约为1.5;胃壁呈生理性糖代谢增强;肠道内见显像剂生理性积聚;脾脏、胰、双肾上腺、右肾和双输尿管未见明显糖代谢异常增高和占位;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚;肠道内见显像剂生理性积聚;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示双侧精囊腺形态可;双侧膀胱精囊三角对称;前列腺饱满伴钙化;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET图像未见糖代谢异常增高。平扫骨窗示诸骨未见明显骨质破坏吸收征象;脊椎椎骨缘和小关节骨质增生;脊柱侧弯。</t>
+          <t>考虑为右肺下叶前基底段周围型MT伴右侧肺门淋巴结转移可能，纵隔气管隆突下淋巴结转移不除外，请结合临床；两肺胸膜旁慢性炎性结节可能，请随访；两肺轻度气肿；肝脏多发囊肿；胆囊结石；左肾小囊肿。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。筛窦、双侧蝶窦和上颌窦粘膜增厚，考虑为炎症。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，密度欠均匀。胸部PET/CT图像示右肺下叶前基底段见大小约为20.0MM×15.5MM、糖代谢增高的软组织结节，平均CT值约为17.4HU，最大SUV值约为7.1，边缘见细小毛刺，牵拉毗邻斜裂；两肺上叶和右肺下叶胸膜旁见数枚小结节，较大者位于右肺下叶前基底段胸膜旁，形态不规则，长径约为5.5MM，最大SUV值约为0.6；两肺另见少许透亮无纹理区；右侧肺门见数枚糖代谢增高的淋巴结，糖代谢较高者大小约为10.0MM×9.0MM，平均CT值约为34.2HU，最大SUV值约为6.5；纵隔气管隆突下右主支气管旁见大小约为10.0MM×6.6MM、糖代谢增高的淋巴结，平均CT值约为39.5HU，最大SUV值约为4.5；左肺门无殊；双侧胸腔无积液；心脏无明显增大；双侧腋窝无明显糖代谢异常增高和肿大淋巴结。腹部PET/CT图像示肝脏表面光整，各叶比例匀称，肝脏实质内见数枚囊性灶，较大者位于右后下叶，大小约为15.5MM×11.0MM，平均CT值约为16.0HU，最大SUV值约为1.3；肝内外胆管无扩张；胆囊内见致密小结节；左肾上极见直径约为6.0MM囊性低密度灶，平均CT值约为10.3HU，最大SUV值约为1.5；胃壁呈生理性糖代谢增强；肠道内见显像剂生理性积聚；脾脏、胰、双肾上腺、右肾和双输尿管未见明显糖代谢异常增高和占位；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚；肠道内见显像剂生理性积聚；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示双侧精囊腺形态可；双侧膀胱精囊三角对称；前列腺饱满伴钙化；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见糖代谢异常增高。平扫骨窗示诸骨未见明显骨质破坏吸收征象；脊椎椎骨缘和小关节骨质增生；脊柱侧弯。</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -7107,7 +7107,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>1.考虑右肺下叶肺癌,并双肺、右胸膜多发转移;较前CT(2016-04-01)右肺下叶肿块影略增大,余较前片相仿;2.心包少量积液,较前相仿;3.甲状腺改变,请结合临床。右肺下叶可见不规则软组织密度影,与右肺门分界不清,边缘毛糙,分叶状,长径约为2.0CM×1.6CM,右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影,部分边缘毛糙;纵隔内未见增大淋巴结影。心包内见少许液性密度影。甲状腺增大。</t>
+          <t>1.考虑右肺下叶肺癌，并双肺、右胸膜多发转移；较前CT(2016-04-01)右肺下叶肿块影略增大，余较前片相仿；2.心包少量积液，较前相仿；3.甲状腺改变，请结合临床。右肺下叶可见不规则软组织密度影，与右肺门分界不清，边缘毛糙，分叶状，长径约为2.0CM×1.6CM，右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影，部分边缘毛糙；纵隔内未见增大淋巴结影。心包内见少许液性密度影。甲状腺增大。</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -7129,7 +7129,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>左肺上叶MT术后病例:左侧锁骨区、纵隔淋巴结转移;全身多处骨转移;左肺门术后改变可能,请结合临床随访;两肺多发磨玻璃结节,考虑为MT可能;两肺多发实性小结节,考虑为慢性炎性结节可能;两肺陈旧灶;两肺气肿;左侧胸腔积液;肝脏囊肿;前列腺增生伴钙化;膀胱肿瘤综合治疗后,未见明显肿瘤复发征象;左侧腮腺良性病变可能,请结合超声检查。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑未见明显糖代谢异常。CT平扫示双侧基底节区见多发点状低密度灶,考虑为腔梗灶;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼外肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。左侧上颌窦粘膜增厚,考虑为慢性炎症。颈部PET/CT图像示左侧腮腺内糖代谢异常增高的稍高密度结节,大小约为16.4MM×12.0MM,最大SUV值约为6.1;左侧锁骨区见糖代谢异常增高的淋巴结,大小约为11.7MM×10.4MM,最大SUV值约为6.4;口咽、喉咽部无占位;甲状腺未见明显糖代谢异常增高和占位。胸部PET/CT图像示左肺上叶术后缺如,左肺门术区见高密度缝线影伴糖代谢轻度增高,最大SUV值约为3.8;两肺多发不伴糖代谢异常增高的磨玻璃结节,较大者位于右肺上叶前段,大小约为6.0MM×5.6MM;两肺另见多发不伴糖代谢异常增高的实性小结节,直径均小于5.0MM;两肺透亮度增高,见多发纤维索条影;腔静脉气管间、主肺动脉窗及右肺门见糖代谢异常增高的淋巴结,较大且糖代谢较高者位于腔静脉气管间,大小约为12.3MM×11.5MM,最大SUV值约为10.2;双侧胸膜局部增厚;左侧胸腔积液;心脏无明显增大;双侧腋窝无殊。腹部PET图像示胃壁呈生理性糖代谢增强;肠道呈生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整,各叶比例匀称,实质内见多发囊性低密度灶,较大者位于左外叶,大小约为36.6MM×34.0MM;肝内外胆管无扩张;脾脏不大,密度均,未见明显占位;胆囊、胰、双肾、肾上腺无殊;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET/CT图像示早期相膀胱内见显像剂生理性积聚,延迟3.5小时显像膀胱充盈,壁光滑无增厚,前壁内见点状钙化影,膀胱壁未见明显糖代谢异常增高灶;肛管局部见糖代谢增高,最大SUV值约为6.8,考虑为生理性摄取或炎性病变;余肠道呈线型生理性糖代谢增强;双侧膀胱精囊三角对称;前列腺增大,其内见点状致密影;盆腔和双侧腹股沟未见明显糖代谢异常增高灶和占位;盆腔无积液。骨骼PET/CT图像示胸骨、第11胸椎、腰4椎体棘突及左侧髂骨见糖代谢异常增高的类圆形稍低密度影,最大SUV值约为8.1;左侧第4肋骨皮质连续性中断伴其走行区软组织糖代谢异常增高,最大SUV值约为4.1,考虑为术后改变;左侧第6前肋髓腔内环状高密度灶,不伴糖代谢异常增高,考虑为良性病变;脊柱多个椎体及椎小关节骨质增生,考虑为退行性改变。</t>
+          <t>左肺上叶MT术后病例：左侧锁骨区、纵隔淋巴结转移；全身多处骨转移；左肺门术后改变可能，请结合临床随访；两肺多发磨玻璃结节，考虑为MT可能；两肺多发实性小结节，考虑为慢性炎性结节可能；两肺陈旧灶；两肺气肿；左侧胸腔积液；肝脏囊肿；前列腺增生伴钙化；膀胱肿瘤综合治疗后，未见明显肿瘤复发征象；左侧腮腺良性病变可能，请结合超声检查。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑未见明显糖代谢异常。CT平扫示双侧基底节区见多发点状低密度灶，考虑为腔梗灶；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。左侧上颌窦粘膜增厚，考虑为慢性炎症。颈部PET/CT图像示左侧腮腺内糖代谢异常增高的稍高密度结节，大小约为16.4MM×12.0MM，最大SUV值约为6.1；左侧锁骨区见糖代谢异常增高的淋巴结，大小约为11.7MM×10.4MM，最大SUV值约为6.4；口咽、喉咽部无占位；甲状腺未见明显糖代谢异常增高和占位。胸部PET/CT图像示左肺上叶术后缺如，左肺门术区见高密度缝线影伴糖代谢轻度增高，最大SUV值约为3.8；两肺多发不伴糖代谢异常增高的磨玻璃结节，较大者位于右肺上叶前段，大小约为6.0MM×5.6MM；两肺另见多发不伴糖代谢异常增高的实性小结节，直径均小于5.0MM；两肺透亮度增高，见多发纤维索条影；腔静脉气管间、主肺动脉窗及右肺门见糖代谢异常增高的淋巴结，较大且糖代谢较高者位于腔静脉气管间，大小约为12.3MM×11.5MM，最大SUV值约为10.2；双侧胸膜局部增厚；左侧胸腔积液；心脏无明显增大；双侧腋窝无殊。腹部PET图像示胃壁呈生理性糖代谢增强；肠道呈生理性糖代谢增强；肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内见多发囊性低密度灶，较大者位于左外叶，大小约为36.6MM×34.0MM；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；胆囊、胰、双肾、肾上腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET/CT图像示早期相膀胱内见显像剂生理性积聚，延迟3.5小时显像膀胱充盈，壁光滑无增厚，前壁内见点状钙化影，膀胱壁未见明显糖代谢异常增高灶；肛管局部见糖代谢增高，最大SUV值约为6.8，考虑为生理性摄取或炎性病变；余肠道呈线型生理性糖代谢增强；双侧膀胱精囊三角对称；前列腺增大，其内见点状致密影；盆腔和双侧腹股沟未见明显糖代谢异常增高灶和占位；盆腔无积液。骨骼PET/CT图像示胸骨、第11胸椎、腰4椎体棘突及左侧髂骨见糖代谢异常增高的类圆形稍低密度影，最大SUV值约为8.1；左侧第4肋骨皮质连续性中断伴其走行区软组织糖代谢异常增高，最大SUV值约为4.1，考虑为术后改变；左侧第6前肋髓腔内环状高密度灶，不伴糖代谢异常增高，考虑为良性病变；脊柱多个椎体及椎小关节骨质增生，考虑为退行性改变。</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -7146,7 +7146,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>左侧乳腺体积增大,左侧乳腺上象限及外象限见不规则团块状肿物,范围约114MM×28MM,边界不清,内见片状低密度区,增强呈不均匀强化,病灶侵犯皮肤,累及乳晕及乳头,乳腺浅筋膜深层见结节状增厚,病灶与胸大肌分界尚清。左侧腋窝、左侧锁骨下区、左侧颈部IV、V区见多发肿大淋巴结,边界不清,密度不均匀,部分融合,大者大小约54MM×35MM,增强呈不均匀强化。左侧第2、3肋间水平内乳区(SE11,IM81)见肿大淋巴结,边界尚清,大小约9MM×7MM,增强呈明显强化。右侧颈部IV区及右侧腋窝见数个小淋巴结,边界清,孤立散在,大者短径约5MM,增强呈均匀轻度强化。右侧乳腺未见明显异常密度灶及强化灶。双颈结构清晰,各血管充盈良好,甲状腺双叶及峡部形态正常,密度均匀,未见占位性病变;喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称;双侧颌下腺、腮腺大小形态正常,密度均匀。双肺纹理清晰,未见结节影;气管及支气管分枝通畅,未见明显软组织肿物或受压变窄;双侧肺门及纵隔未见明确肿大淋巴结;左侧胸腔见少量积液,右侧胸腔未见积液;胸膜未见增厚。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度不均匀,肝S2、4、7、8见多个稍低密度灶,边界不清,部分融合,大者位于肝S4,大小约51MM×43MM,增强扫描动脉期呈轻度环形强化,门脉期及平衡期强化程度减低。肝内胆管正常,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影;肝门区正常;门静脉未见异常;脾大小正常,密度均匀;胰腺大小、形态正常,密度均匀;双肾及双肾上腺未见异常。腹主动脉旁见多发小淋巴结,边界欠清,大者短径约5MM,增强呈轻度强化。扫描层面未见明确骨质破坏征象。左侧乳腺病灶,考虑乳腺癌。左侧腋窝、左侧锁骨下区、左侧颈部IV、V区及左侧内乳区淋巴结,考虑转移瘤。右侧颈部IV区及右侧腋窝小淋巴结。左侧少量胸腔积液。肝内多发病灶,考虑转移瘤。腹主动脉旁多发小淋巴结,转移待排,建议随诊。</t>
+          <t>左侧乳腺体积增大，左侧乳腺上象限及外象限见不规则团块状肿物，范围约114MM×28MM，边界不清，内见片状低密度区，增强呈不均匀强化，病灶侵犯皮肤，累及乳晕及乳头，乳腺浅筋膜深层见结节状增厚，病灶与胸大肌分界尚清。左侧腋窝、左侧锁骨下区、左侧颈部IV、V区见多发肿大淋巴结，边界不清，密度不均匀，部分融合，大者大小约54MM×35MM，增强呈不均匀强化。左侧第2、3肋间水平内乳区(SE11，IM81)见肿大淋巴结，边界尚清，大小约9MM×7MM，增强呈明显强化。右侧颈部IV区及右侧腋窝见数个小淋巴结，边界清，孤立散在，大者短径约5MM，增强呈均匀轻度强化。右侧乳腺未见明显异常密度灶及强化灶。双颈结构清晰，各血管充盈良好，甲状腺双叶及峡部形态正常，密度均匀，未见占位性病变；喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称；双侧颌下腺、腮腺大小形态正常，密度均匀。双肺纹理清晰，未见结节影；气管及支气管分枝通畅，未见明显软组织肿物或受压变窄；双侧肺门及纵隔未见明确肿大淋巴结；左侧胸腔见少量积液，右侧胸腔未见积液；胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝S2、4、7、8见多个稍低密度灶，边界不清，部分融合，大者位于肝S4，大小约51MM×43MM，增强扫描动脉期呈轻度环形强化，门脉期及平衡期强化程度减低。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影；肝门区正常；门静脉未见异常；脾大小正常，密度均匀；胰腺大小、形态正常，密度均匀；双肾及双肾上腺未见异常。腹主动脉旁见多发小淋巴结，边界欠清，大者短径约5MM，增强呈轻度强化。扫描层面未见明确骨质破坏征象。左侧乳腺病灶，考虑乳腺癌。左侧腋窝、左侧锁骨下区、左侧颈部IV、V区及左侧内乳区淋巴结，考虑转移瘤。右侧颈部IV区及右侧腋窝小淋巴结。左侧少量胸腔积液。肝内多发病灶，考虑转移瘤。腹主动脉旁多发小淋巴结，转移待排，建议随诊。</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -7168,7 +7168,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>胰腺尾部见一大小约3.63CM×3.1CM不规则的肿块影,呈长T1稍及等高混杂T2信号,边界模糊,增强后不均匀轻度强化,病灶中央见囊变坏死区。肝脏见多个类圆形长T1长T2信号,增强后环形强化。肝内外胆管无扩张,胆囊未见异常征象。脾脏见一直径约0.9CM椭圆形环形强化的长T1短T2信号。上腹部局部腹膜明显强化,呈片状、网格状及小结节状改变。胰尾周围及后腹膜区及大血管旁见多个稍大的淋巴结影。腹腔内及双侧胸腔见积液信号。1、胰尾癌并肝脏多发转移瘤;腹膜广泛转移;腹膜后多发淋巴转移;2、脾脏异常信号,考虑为良性病变可能性大,请随诊;3、腹腔及双侧胸腔积液。</t>
+          <t>胰腺尾部见一大小约3.63CM×3.1CM不规则的肿块影，呈长T1稍及等高混杂T2信号，边界模糊，增强后不均匀轻度强化，病灶中央见囊变坏死区。肝脏见多个类圆形长T1长T2信号，增强后环形强化。肝内外胆管无扩张，胆囊未见异常征象。脾脏见一直径约0.9CM椭圆形环形强化的长T1短T2信号。上腹部局部腹膜明显强化，呈片状、网格状及小结节状改变。胰尾周围及后腹膜区及大血管旁见多个稍大的淋巴结影。腹腔内及双侧胸腔见积液信号。1、胰尾癌并肝脏多发转移瘤；腹膜广泛转移；腹膜后多发淋巴转移；2、脾脏异常信号，考虑为良性病变可能性大，请随诊；3、腹腔及双侧胸腔积液。</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -7190,7 +7190,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>显像方法:静脉注射99MMTC-MIBI10分钟后应用DILON乳腺机行双侧乳腺及腋窝平面显像,RCC、LCC、RMLO、LMLO位采集信息,采集时间均为6分钟/体位。影像所见:双侧乳腺显影清晰,双侧乳腺放射性分布基本均匀,右乳上象限见放射性异常浓聚灶,RMLO:最大T/N比值约为2.1;左侧乳腺外上象限见斑片状放射性略浓聚影,LCC:最大T/N比值约为1.6,LMLO:最大T/N比值约为1.3;右侧腋窝见放射性略浓聚影,左侧腋窝未见明显放射性异常浓聚灶。乳腺99MMTC-MIBIBSGI平面显像示:右乳上象限MT;右侧腋窝淋巴结转移可能;左乳外上象限放射性略浓聚灶,结合T/N比值,考虑为良性病变,请结合临床。</t>
+          <t>显像方法：静脉注射99MMTC-MIBI10分钟后应用DILON乳腺机行双侧乳腺及腋窝平面显像，RCC、LCC、RMLO、LMLO位采集信息，采集时间均为6分钟/体位。影像所见：双侧乳腺显影清晰，双侧乳腺放射性分布基本均匀，右乳上象限见放射性异常浓聚灶，RMLO：最大T/N比值约为2.1；左侧乳腺外上象限见斑片状放射性略浓聚影，LCC：最大T/N比值约为1.6，LMLO：最大T/N比值约为1.3；右侧腋窝见放射性略浓聚影，左侧腋窝未见明显放射性异常浓聚灶。乳腺99MMTC-MIBIBSGI平面显像示：右乳上象限MT；右侧腋窝淋巴结转移可能；左乳外上象限放射性略浓聚灶，结合T/N比值，考虑为良性病变，请结合临床。</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -7207,7 +7207,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>右上肺前段可见团块状病灶,大小约39MM×37MM,边缘分叶,侵犯水平裂胸膜,其内密度不均匀,增强后见不均匀强化,病灶远端肺组织节段性透亮度减低,肺叶收缩,与右上肺病灶分界不清楚;病灶周围可见斑片状模糊影。右中肺胸膜下见一小结节,直径约2MM,边界清楚。右肺尖见斑片状模糊影,密度不均匀。气管及支气管分支通畅。右肺门、隆突下、右上下气管旁、血管前可见多发肿大淋巴结,最大位于右肺门,融合成团,范围约36MM×30MM,增强扫描轻度不均匀强化;右上肺动静脉被包绕,管腔狭窄,未见充盈缺损。双侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度欠均匀,肝S1可见低密度灶,大小约10MM×6MM,边界清楚,增强后未见强化。肝内胆管正常,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。双肾所见正常。双肾上腺所见正常。腹腔干周围、腹主动脉旁见小淋巴结,大者短径约7MM,边界清楚,增强均匀强化。胸12椎体见类圆形骨质密度减低区,边清,骨小梁稀疏。右上肺前段病灶,考虑肺癌。右上肺斑片影,考虑炎症。右肺门及纵隔淋巴结肿大,考虑转移。肝S1低密度灶,考虑肝囊肿。胸12椎体病灶,考虑血管瘤。</t>
+          <t>右上肺前段可见团块状病灶，大小约39MM×37MM，边缘分叶，侵犯水平裂胸膜，其内密度不均匀，增强后见不均匀强化，病灶远端肺组织节段性透亮度减低，肺叶收缩，与右上肺病灶分界不清楚；病灶周围可见斑片状模糊影。右中肺胸膜下见一小结节，直径约2MM，边界清楚。右肺尖见斑片状模糊影，密度不均匀。气管及支气管分支通畅。右肺门、隆突下、右上下气管旁、血管前可见多发肿大淋巴结，最大位于右肺门，融合成团，范围约36MM×30MM，增强扫描轻度不均匀强化；右上肺动静脉被包绕，管腔狭窄，未见充盈缺损。双侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝S1可见低密度灶，大小约10MM×6MM，边界清楚，增强后未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾所见正常。双肾上腺所见正常。腹腔干周围、腹主动脉旁见小淋巴结，大者短径约7MM，边界清楚，增强均匀强化。胸12椎体见类圆形骨质密度减低区，边清，骨小梁稀疏。右上肺前段病灶，考虑肺癌。右上肺斑片影，考虑炎症。右肺门及纵隔淋巴结肿大，考虑转移。肝S1低密度灶，考虑肝囊肿。胸12椎体病灶，考虑血管瘤。</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -7229,7 +7229,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>空腹6小时以上,静脉注射显像剂,平静休息60MMIN后行全身PET及CT断层显像,PET图像经衰减校正及重建后,将PET及CT图像行多平面、多幅显示:右肺上叶近肺门处见一软组织肿块,病变跨右水平裂,约5.0CM×3.4CM,边缘可见分叶及毛刺,放射性分布异常浓聚,最大SUV16.7,远端伴阻塞性条片影,右水平裂增厚。余肺内未见异常浓聚灶。纵隔3A、右肺门可见肿大且异常浓聚淋巴结,较大者位于右肺门,约2.6CM×1.7CM,最大SUV11.4;纵隔2R、4R/L、5、6、7、8及左侧肺门可见数个淋巴结,伴放射性摄取增高,较大者位于4R区,约1.5CM×0.9CM,最大SUV4.3。心肌显影。左侧胸膜无增厚,双侧胸水征阴性。右侧第一前肋胸肋关节放射性浓聚灶,最大SUV6.1;余视野内轴心骨未见异常放射性浓聚。脊柱退变。左侧股骨内骨岛。大脑形态如常,皮层各叶放射性分布均匀。皮层下各神经核团显影清晰,放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深,白质未见明显低密度影,中线无移位。脑室无扩大,基底节区显示对称。小脑显影如常,两侧小脑对称。口咽部见对称性放射性摄取,最大SUV5.6。鼻咽部无异常放射性浓聚。甲状腺两叶不大,形态可,腺实质内未见异常放射性增高灶。左颈部颈动脉鞘内可见一淋巴结,放射性摄取增高,最大SUV4.0;余颈部及锁骨上区未见明显异常淋巴结浓聚。胃充盈稍差,胃壁见弥漫性轻度摄取,最大SUV3.8。肝脏形态可,轮廓光整,肝叶比例正常,肝实质密度弥漫性减低,平扫CT值约37HU,低于同层面脾实质密度。肝S7可见稍低密度影,未见放射性浓聚。余肝实质内未见异常浓聚灶。肝内外胆管无扩张。胆囊大小正常,密度均匀,胆囊壁无增厚。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。左侧肾上腺体部略粗,伴轻度摄取增高,最大SUV3.1,右侧肾上腺显影大致正常。腹盆部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常,膀胱壁无增厚。前列腺大小正常,内可见点状钙化,放射性分布大致正常。两侧腹股沟无异常淋巴结显示。视野内皮肤及软组织内未见异常放射性摄取。1、右肺上叶近肺门高代谢占位,符合肺癌;病变跨右水平裂。纵隔3A区、右肺门淋巴结转移。左颈部、纵隔2R、4R/L、5、6、7、8区及左肺门淋巴结,尚需与炎性反应性淋巴结鉴别。右侧第一肋胸关节及左肾上腺代谢增高,建议随访复查。2、肝S7稍低密度影,未见高代谢,结合2017-7-25外院增强CT,考虑良性(血管瘤)。脂肪肝。3、口咽部炎性摄取;胃壁炎性或非特异性摄取;前列腺钙化;脊柱退变;左侧股骨骨岛。</t>
+          <t>空腹6小时以上，静脉注射显像剂，平静休息60MMIN后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：右肺上叶近肺门处见一软组织肿块，病变跨右水平裂，约5.0CM×3.4CM，边缘可见分叶及毛刺，放射性分布异常浓聚，最大SUV16.7，远端伴阻塞性条片影，右水平裂增厚。余肺内未见异常浓聚灶。纵隔3A、右肺门可见肿大且异常浓聚淋巴结，较大者位于右肺门，约2.6CM×1.7CM，最大SUV11.4；纵隔2R、4R/L、5、6、7、8及左侧肺门可见数个淋巴结，伴放射性摄取增高，较大者位于4R区，约1.5CM×0.9CM，最大SUV4.3。心肌显影。左侧胸膜无增厚，双侧胸水征阴性。右侧第一前肋胸肋关节放射性浓聚灶，最大SUV6.1；余视野内轴心骨未见异常放射性浓聚。脊柱退变。左侧股骨内骨岛。大脑形态如常，皮层各叶放射性分布均匀。皮层下各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，两侧小脑对称。口咽部见对称性放射性摄取，最大SUV5.6。鼻咽部无异常放射性浓聚。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。左颈部颈动脉鞘内可见一淋巴结，放射性摄取增高，最大SUV4.0；余颈部及锁骨上区未见明显异常淋巴结浓聚。胃充盈稍差，胃壁见弥漫性轻度摄取，最大SUV3.8。肝脏形态可，轮廓光整，肝叶比例正常，肝实质密度弥漫性减低，平扫CT值约37HU，低于同层面脾实质密度。肝S7可见稍低密度影，未见放射性浓聚。余肝实质内未见异常浓聚灶。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。左侧肾上腺体部略粗，伴轻度摄取增高，最大SUV3.1，右侧肾上腺显影大致正常。腹盆部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常，膀胱壁无增厚。前列腺大小正常，内可见点状钙化，放射性分布大致正常。两侧腹股沟无异常淋巴结显示。视野内皮肤及软组织内未见异常放射性摄取。1、右肺上叶近肺门高代谢占位，符合肺癌；病变跨右水平裂。纵隔3A区、右肺门淋巴结转移。左颈部、纵隔2R、4R/L、5、6、7、8区及左肺门淋巴结，尚需与炎性反应性淋巴结鉴别。右侧第一肋胸关节及左肾上腺代谢增高，建议随访复查。2、肝S7稍低密度影，未见高代谢，结合2017-7-25外院增强CT，考虑良性(血管瘤)。脂肪肝。3、口咽部炎性摄取；胃壁炎性或非特异性摄取；前列腺钙化；脊柱退变；左侧股骨骨岛。</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -7251,7 +7251,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>1.左肺下叶中心型肺癌,侵及左下肺静脉,伴局部肺不张,左肺门、纵隔淋巴结转移2.左侧胸腔少量积液3.肝左叶囊实性占位,伴肝内胆管轻度扩张,考虑转移可能性大,建议活检或治疗后复查4.胰腺占位,考虑转移伴胰管轻度扩张左肺下叶支气管截断,局部见一软组织密度肿块,其远端见不张实变的肺组织影,病变大小不易准确测量,估计长径约5.5CM左右,病变与心包关系密切;增强后病变呈不均匀强化,并见病变包埋左下肺静脉。左肺上叶透光区略示增高。余双肺清晰。左肺门10区及11区、纵隔内8R、8L、7区见增大淋巴结,并相互融合,4R、4L区见稍大淋巴结,大者短径约4.0CM,心包及右肺动脉轻度受压;增强后不均匀强化。左侧胸腔内见少许液性密度影。肝左叶见一大小约10.2CM×7.7CM囊性密度灶,厚壁,见壁结节向腔内突出,增强后壁结节可见强化。病变周期肝实质动脉期见片状一过性显著强化区,考虑为灌注异常。病变远端见少许轻度扩张的胆管影。门静脉左支受压变形。胆囊未见异常。胰腺颈部见一长径约0.9CM低密度灶,边缘略示模糊,其远端胆管轻度扩张。脾、双肾及肾上腺未见异常。腹腔及腹膜后未见显著增大淋巴结。</t>
+          <t>1.左肺下叶中心型肺癌，侵及左下肺静脉，伴局部肺不张，左肺门、纵隔淋巴结转移2.左侧胸腔少量积液3.肝左叶囊实性占位，伴肝内胆管轻度扩张，考虑转移可能性大，建议活检或治疗后复查4.胰腺占位，考虑转移伴胰管轻度扩张左肺下叶支气管截断，局部见一软组织密度肿块，其远端见不张实变的肺组织影，病变大小不易准确测量，估计长径约5.5CM左右，病变与心包关系密切；增强后病变呈不均匀强化，并见病变包埋左下肺静脉。左肺上叶透光区略示增高。余双肺清晰。左肺门10区及11区、纵隔内8R、8L、7区见增大淋巴结，并相互融合，4R、4L区见稍大淋巴结，大者短径约4.0CM，心包及右肺动脉轻度受压；增强后不均匀强化。左侧胸腔内见少许液性密度影。肝左叶见一大小约10.2CM×7.7CM囊性密度灶，厚壁，见壁结节向腔内突出，增强后壁结节可见强化。病变周期肝实质动脉期见片状一过性显著强化区，考虑为灌注异常。病变远端见少许轻度扩张的胆管影。门静脉左支受压变形。胆囊未见异常。胰腺颈部见一长径约0.9CM低密度灶，边缘略示模糊，其远端胆管轻度扩张。脾、双肾及肾上腺未见异常。腹腔及腹膜后未见显著增大淋巴结。</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -7273,7 +7273,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>左肺下叶前内基底段空洞占位,代谢活跃,考虑为肺癌;纵隔7、11L区、左肺门、贲门区及胃左动脉旁转移淋巴结;肝内多发高代谢灶,考虑为转移;右枕骨、右7肋骨转移;T2左侧横突稍高代谢,随诊除外转移。脑部代谢未见明显异常征象,垂体区稍高代谢,请结合增强MRI。左乳外上象限小结节,未见高代谢,疑为良性病变,请结合超声。脂肪肝。右附件囊肿。宫内节育环。空腹6小时以上,静脉注射显像剂,平静休息60MMIN后行全身PET及CT断层显像,PET图像经衰减校正及重建后,将PET及CT图像行多平面、多幅显示:左肺下叶前内基底段空洞占位,约2.1CM×1.7CM,可见分叶、毛刺及胸膜牵拉征,同机PET显示放射性摄取异常增高,最大SUVMAX值6.1;余肺未见异常密度影及浓聚灶。纵隔7、11L区、左肺门、贲门区及胃左动脉旁可见多发浓聚淋巴结,较大的约为1.9CM×1.6CM,最大SUVMAX值6.54。余纵隔及右肺门未见肿大及浓聚淋巴结。肝内可见多发浓聚灶,较大的约为CM,最大SUVMAX值5.28;余肝实质密度弥漫性减低,平扫CT值为17HU。右枕骨骨质破坏伴放射性浓聚,SUVMAX11.6;右7肋骨骨质破坏伴浓聚,最大SUVMAX值6.66;T2左侧横突摄取略高,最大SUVMAX值2.6。大脑形态如常,皮层各叶放射性分布均匀。皮层下各神经核团显影清晰,放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深,白质未见明显低密度影,中线无移位。脑室无扩大,基底节区显示对称。小脑显影如常,两侧小脑对称。垂体区灶状高摄取,最大SUVMAX值4.3。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。甲状腺两叶不大,形态可,腺实质内未见异常放射性增高灶。颈部及锁骨上区未见明显异常淋巴结浓聚。心肌显影浅淡。胸膜无增厚,胸水征阴性。两侧乳腺轻度显影,两侧大致对称,左侧乳腺外上象限可见小结节,约0.6CM×0.5CM,未见异常放射性摄取,余乳腺区未见异常浓聚灶。未见胸部软组织异常影像。胃充盈好,胃壁显影如常。肝内外胆管无扩张。胆囊大小正常,密度均匀,胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。腹壁软组织未见明显异常影像。膀胱放射性浓聚如常,膀胱壁无增厚。子宫体积、形态尚可,宫内可见节育环,局部无异常放射性浓聚。右附件可见囊性低密度影,放射性摄取稀疏缺损;左侧附件区未见异常放射性摄取。两侧腹股沟无异常淋巴结显示。视野内皮肤及软组织内未见异常放射性摄取。</t>
+          <t>左肺下叶前内基底段空洞占位，代谢活跃，考虑为肺癌；纵隔7、11L区、左肺门、贲门区及胃左动脉旁转移淋巴结；肝内多发高代谢灶，考虑为转移；右枕骨、右7肋骨转移；T2左侧横突稍高代谢，随诊除外转移。脑部代谢未见明显异常征象，垂体区稍高代谢，请结合增强MRI。左乳外上象限小结节，未见高代谢，疑为良性病变，请结合超声。脂肪肝。右附件囊肿。宫内节育环。空腹6小时以上，静脉注射显像剂，平静休息60MMIN后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：左肺下叶前内基底段空洞占位，约2.1CM×1.7CM，可见分叶、毛刺及胸膜牵拉征，同机PET显示放射性摄取异常增高，最大SUVMAX值6.1；余肺未见异常密度影及浓聚灶。纵隔7、11L区、左肺门、贲门区及胃左动脉旁可见多发浓聚淋巴结，较大的约为1.9CM×1.6CM，最大SUVMAX值6.54。余纵隔及右肺门未见肿大及浓聚淋巴结。肝内可见多发浓聚灶，较大的约为CM，最大SUVMAX值5.28；余肝实质密度弥漫性减低，平扫CT值为17HU。右枕骨骨质破坏伴放射性浓聚，SUVMAX11.6；右7肋骨骨质破坏伴浓聚，最大SUVMAX值6.66；T2左侧横突摄取略高，最大SUVMAX值2.6。大脑形态如常，皮层各叶放射性分布均匀。皮层下各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，两侧小脑对称。垂体区灶状高摄取，最大SUVMAX值4.3。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。颈部及锁骨上区未见明显异常淋巴结浓聚。心肌显影浅淡。胸膜无增厚，胸水征阴性。两侧乳腺轻度显影，两侧大致对称，左侧乳腺外上象限可见小结节，约0.6CM×0.5CM，未见异常放射性摄取，余乳腺区未见异常浓聚灶。未见胸部软组织异常影像。胃充盈好，胃壁显影如常。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。腹壁软组织未见明显异常影像。膀胱放射性浓聚如常，膀胱壁无增厚。子宫体积、形态尚可，宫内可见节育环，局部无异常放射性浓聚。右附件可见囊性低密度影，放射性摄取稀疏缺损；左侧附件区未见异常放射性摄取。两侧腹股沟无异常淋巴结显示。视野内皮肤及软组织内未见异常放射性摄取。</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -7295,7 +7295,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>右肺癌术后化疗后复查,与2017-05-27片对比:右肺下叶术后缺失,右肺下叶支气管截断,残端见金属致密影,未见明显软组织肿块影。残余右肺见多个类结节灶及条索灶,边界清。右肺上叶纵隔旁见条片稍高密度影,边界欠清。左肺内未见明显实质性病变。气管及余支气管分支通畅,未见明显受压变窄及异常扩张。双侧锁上、纵隔(主肺动脉窗、右上气管旁、双下气管旁、隆突下)、右肺门见多个小淋巴结,最大者直径约7MM,部分边界欠清,较前变化不大。双侧胸腔未见明显积液。右侧胸膜稍增厚,较前变化不明显;左侧胸膜未见明显增厚、粘连。心包腔内见少量液性低密度影,较前变化不大。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,肝S4、S6、S7见小结节低密度灶,边界清,最大短径约6MM,增强扫描轻度强化,较前变化不大。肝内胆管正常,其内未见结石影,胆囊大小正常,其内见点状小结石,胆总管未见扩张,其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。双肾见小类圆形低密度灶,边界清,较大者直径约8MM,增强扫描未见明显强化。双肾上腺大小、形态未见异常,密度均匀。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。右侧第5后肋、左侧第6前肋局部骨质密度增高,较前变化不大。T11、T12、L1、L3骨质密度不均匀增高,较前变化不大。右肺癌术后化疗后复查,与2017-05-27片对比:右肺下叶术后缺失,局部未见明确复发征象。双侧锁骨上、纵隔多发小淋巴结,较前无明显变化。右肺上叶纵隔旁条带影,考虑放射性肺炎可能,较前变化不大。肝S4、S6、S7小结节低密度灶,考虑转移瘤,较前变化不大。右侧第5后肋、左侧第6前肋,T11、T12、L1、L3骨质改变,考虑骨转移瘤,较前无明显变化。双肾囊肿。胆囊结石。</t>
+          <t>右肺癌术后化疗后复查，与2017-05-27片对比：右肺下叶术后缺失，右肺下叶支气管截断，残端见金属致密影，未见明显软组织肿块影。残余右肺见多个类结节灶及条索灶，边界清。右肺上叶纵隔旁见条片稍高密度影，边界欠清。左肺内未见明显实质性病变。气管及余支气管分支通畅，未见明显受压变窄及异常扩张。双侧锁上、纵隔(主肺动脉窗、右上气管旁、双下气管旁、隆突下)、右肺门见多个小淋巴结，最大者直径约7MM，部分边界欠清，较前变化不大。双侧胸腔未见明显积液。右侧胸膜稍增厚，较前变化不明显；左侧胸膜未见明显增厚、粘连。心包腔内见少量液性低密度影，较前变化不大。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S4、S6、S7见小结节低密度灶，边界清，最大短径约6MM，增强扫描轻度强化，较前变化不大。肝内胆管正常，其内未见结石影，胆囊大小正常，其内见点状小结石，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾见小类圆形低密度灶，边界清，较大者直径约8MM，增强扫描未见明显强化。双肾上腺大小、形态未见异常，密度均匀。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。右侧第5后肋、左侧第6前肋局部骨质密度增高，较前变化不大。T11、T12、L1、L3骨质密度不均匀增高，较前变化不大。右肺癌术后化疗后复查，与2017-05-27片对比：右肺下叶术后缺失，局部未见明确复发征象。双侧锁骨上、纵隔多发小淋巴结，较前无明显变化。右肺上叶纵隔旁条带影，考虑放射性肺炎可能，较前变化不大。肝S4、S6、S7小结节低密度灶，考虑转移瘤，较前变化不大。右侧第5后肋、左侧第6前肋，T11、T12、L1、L3骨质改变，考虑骨转移瘤，较前无明显变化。双肾囊肿。胆囊结石。</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -7312,7 +7312,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>左侧乳腺癌术后局部复发2程化疗后,对比2012.4.24CT:左侧胸壁多发结节及团块,左侧胸壁皮肤不均匀增厚,较前明显好转。左锁上下区、右侧腋窝、纵膈、双肺门、右前膈角区、膈脚后、胃左血管旁及腹膜后多发肿大淋巴结,考虑转移瘤,均较前缩小。双侧胸腔积液,较前吸收、减少;双下肺组织膨胀不全。肝脏未见明确病变。肝左叶肝内胆管结石;胆囊结石。左侧乳腺癌术后局部复发2程化疗后,对比2012.4.24CT:左侧乳腺癌术后,左侧乳腺缺失,左侧胸壁见多发结节及团块影,边界不清楚,密度不均匀,最大范围约20MM×32MM,增强后不均匀强化,左侧局部皮肤不均匀增厚,皮下索条影增多,边界模糊。左侧锁骨上下区、右侧腋窝见多发肿大淋巴结,可见融合坏死,边界欠清,最大约21MM×25MM,增强后不均匀强化,左侧锁骨下动脉、静脉被包绕,边界欠清。右侧乳腺腺体结构稍乱,呈团片影,边界欠清,未见明确肿物。双肺纹理粗多,双侧胸腔见少量积液,双下肺组织受压膨胀不全。最上纵膈、血管前、双上下气管旁、主肺动脉窗、主动脉弓旁、隆突下及双肺门、右前膈角区见多发肿大淋巴结,可见融合,最大约19MM×32MM,边界欠清。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度均匀。肝左叶肝内胆管见散在高密度影,余肝内胆管正常,其内未见结石影,胆囊大小正常,其内见结石影,胆总管未见扩张,其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。双肾所见正常。双肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁见多发肿大淋巴结,最大约15MM×22MM,增强后较明显强化。扫描所见骨质未见明确破坏征象。</t>
+          <t>左侧乳腺癌术后局部复发2程化疗后，对比2012.4.24CT：左侧胸壁多发结节及团块，左侧胸壁皮肤不均匀增厚，较前明显好转。左锁上下区、右侧腋窝、纵膈、双肺门、右前膈角区、膈脚后、胃左血管旁及腹膜后多发肿大淋巴结，考虑转移瘤，均较前缩小。双侧胸腔积液，较前吸收、减少；双下肺组织膨胀不全。肝脏未见明确病变。肝左叶肝内胆管结石；胆囊结石。左侧乳腺癌术后局部复发2程化疗后，对比2012.4.24CT：左侧乳腺癌术后，左侧乳腺缺失，左侧胸壁见多发结节及团块影，边界不清楚，密度不均匀，最大范围约20MM×32MM，增强后不均匀强化，左侧局部皮肤不均匀增厚，皮下索条影增多，边界模糊。左侧锁骨上下区、右侧腋窝见多发肿大淋巴结，可见融合坏死，边界欠清，最大约21MM×25MM，增强后不均匀强化，左侧锁骨下动脉、静脉被包绕，边界欠清。右侧乳腺腺体结构稍乱，呈团片影，边界欠清，未见明确肿物。双肺纹理粗多，双侧胸腔见少量积液，双下肺组织受压膨胀不全。最上纵膈、血管前、双上下气管旁、主肺动脉窗、主动脉弓旁、隆突下及双肺门、右前膈角区见多发肿大淋巴结，可见融合，最大约19MM×32MM，边界欠清。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀。肝左叶肝内胆管见散在高密度影，余肝内胆管正常，其内未见结石影，胆囊大小正常，其内见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾所见正常。双肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁见多发肿大淋巴结，最大约15MM×22MM，增强后较明显强化。扫描所见骨质未见明确破坏征象。</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -7329,7 +7329,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>右肺下叶后基底段占位,考虑周围型肺癌可能性大。左肺上叶结节,转移待排,建议追查。右侧胸膜增厚,考虑受侵可能。纵隔内淋巴结,性质待定。右肺下叶后基底段见类圆形结节,约为17MM×15MM(IM47),结节边缘见索条影与邻近胸膜相连。另见左肺上叶见小结节,约为8MM(IM17)。左肺舌叶、右肺中叶及右肺下叶见索条影。右侧胸膜增厚,左侧胸膜光滑,双侧未见胸水征象。纵隔内4、7、10R组见多发淋巴结,较大约15MM×11MM(IM22)。双侧锁骨上区未见肿大淋巴结。扫及诸骨未见破坏征象。</t>
+          <t>右肺下叶后基底段占位，考虑周围型肺癌可能性大。左肺上叶结节，转移待排，建议追查。右侧胸膜增厚，考虑受侵可能。纵隔内淋巴结，性质待定。右肺下叶后基底段见类圆形结节，约为17MM×15MM(IM47)，结节边缘见索条影与邻近胸膜相连。另见左肺上叶见小结节，约为8MM(IM17)。左肺舌叶、右肺中叶及右肺下叶见索条影。右侧胸膜增厚，左侧胸膜光滑，双侧未见胸水征象。纵隔内4、7、10R组见多发淋巴结，较大约15MM×11MM(IM22)。双侧锁骨上区未见肿大淋巴结。扫及诸骨未见破坏征象。</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -7351,7 +7351,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>右肺下叶见一不规则软组织密度结节灶,边缘分叶,截面积约2.1CM×1.6CM;增强扫描呈不均匀强化。另于右肺下叶胸膜下见类结节灶(图5-40),直径约0.7CM。双肺透光度减低,右肺上叶可见少许片絮状密度增高影。右肺门、纵隔内2R、2L、4R见多发肿大淋巴结,大者短径约1.0CM。肝内胆管局部示扩张,肝内见多发低密度灶,边界清,未见强化。双肾形态可,强化欠均匀,可见片状低密度影。腹腔及腹膜后未见明确肿大淋巴结。部分椎体内可见低密度影,其内可见颗粒状高密度影。1.结合临床,右肺下叶癌,右肺门及纵隔淋巴结肿大,考虑转移2.右肺下叶胸膜下类结节灶,建议观察3.右肺上叶片絮状影,考虑炎症4.肝内胆管轻度扩张5.双肾密度减低并片状低密度影,建议结合临床6.部分椎体低密度影,考虑血管瘤</t>
+          <t>右肺下叶见一不规则软组织密度结节灶，边缘分叶，截面积约2.1CM×1.6CM；增强扫描呈不均匀强化。另于右肺下叶胸膜下见类结节灶(图5-40)，直径约0.7CM。双肺透光度减低，右肺上叶可见少许片絮状密度增高影。右肺门、纵隔内2R、2L、4R见多发肿大淋巴结，大者短径约1.0CM。肝内胆管局部示扩张，肝内见多发低密度灶，边界清，未见强化。双肾形态可，强化欠均匀，可见片状低密度影。腹腔及腹膜后未见明确肿大淋巴结。部分椎体内可见低密度影，其内可见颗粒状高密度影。1.结合临床，右肺下叶癌，右肺门及纵隔淋巴结肿大，考虑转移2.右肺下叶胸膜下类结节灶，建议观察3.右肺上叶片絮状影，考虑炎症4.肝内胆管轻度扩张5.双肾密度减低并片状低密度影，建议结合临床6.部分椎体低密度影，考虑血管瘤</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -7373,7 +7373,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>右肺下叶可见不规则软组织密度影,与右肺门分界不清,边缘毛糙,分叶状,长径约为1.9CM×1.6CM,右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影,部分边缘毛糙;纵隔内未见增大淋巴结影。心包内见少许液性密度影。甲状腺增大。1.考虑右肺下叶肺癌,并双肺、右胸膜多发转移;较前CT(2016-06-13)相仿;2.心包少量积液,较前相仿;3.甲状腺改变,请结合临床。</t>
+          <t>右肺下叶可见不规则软组织密度影，与右肺门分界不清，边缘毛糙，分叶状，长径约为1.9CM×1.6CM，右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影，部分边缘毛糙；纵隔内未见增大淋巴结影。心包内见少许液性密度影。甲状腺增大。1.考虑右肺下叶肺癌，并双肺、右胸膜多发转移；较前CT(2016-06-13)相仿；2.心包少量积液，较前相仿；3.甲状腺改变，请结合临床。</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -7395,7 +7395,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>“左肺鳞癌放化疗后”,对比2014-10-8MMR片:左肺门周围软组织增多,边界不清,范围约18MM×17MM,包绕左上肺叶支气管,左上肺支气管狭窄,病灶T1WI呈等信号,T2WI呈稍高信号,增强后轻度强化,与前片对比,病灶范围较前未见明显变化。左肺上叶见斑片状、条索状病变,边界不清,信号不均匀,部分病灶内见空洞形成,较前变化不大。右侧肺尖见数处斑片影、条索影,较前未见明显变化。左肺下叶见少许条索灶,边界清晰,与邻近胸膜粘连,大致同前。原右上肺及左下肺背段斑片影较前吸收。双下气管旁见数个淋巴结,较大者大小约15MM×11MM,边界欠清,轻中度强化,较前缩小。双侧胸腔未见积液,左下胸膜轻度增厚,右侧胸膜未见增厚。扫描所见骨质未见明确破坏征象。大脑各叶、小脑及脑干形态正常,信号均匀,增强后亦未见异常信号区。各脑室及脑池大小、形态未见异常;大脑中线结构未见移位,未见占位性病变。颅骨骨质未见破坏。双侧筛窦粘膜增厚,右侧上颌窦粘膜增厚,内见大量分泌物。双眼球后未见占位性病变。“左肺鳞癌放化疗后”,左上肺门周围软组织灶,范围较前未见明显变化。左肺上叶条索及空腔影,考虑纤维灶并肺大泡可能性大,较前未见明显变化。右肺尖及左下肺少许斑片影、条索影,较前未见明显变化。右上肺及左下肺背段斑片影,考虑炎症,较前吸收。纵隔淋巴结,考虑转移瘤,较前缩小。颅脑未见明确异常。副鼻窦炎。</t>
+          <t>“左肺鳞癌放化疗后”，对比2014-10-8MMR片：左肺门周围软组织增多，边界不清，范围约18MM×17MM，包绕左上肺叶支气管，左上肺支气管狭窄，病灶T1WI呈等信号，T2WI呈稍高信号，增强后轻度强化，与前片对比，病灶范围较前未见明显变化。左肺上叶见斑片状、条索状病变，边界不清，信号不均匀，部分病灶内见空洞形成，较前变化不大。右侧肺尖见数处斑片影、条索影，较前未见明显变化。左肺下叶见少许条索灶，边界清晰，与邻近胸膜粘连，大致同前。原右上肺及左下肺背段斑片影较前吸收。双下气管旁见数个淋巴结，较大者大小约15MM×11MM，边界欠清，轻中度强化，较前缩小。双侧胸腔未见积液，左下胸膜轻度增厚，右侧胸膜未见增厚。扫描所见骨质未见明确破坏征象。大脑各叶、小脑及脑干形态正常，信号均匀，增强后亦未见异常信号区。各脑室及脑池大小、形态未见异常；大脑中线结构未见移位，未见占位性病变。颅骨骨质未见破坏。双侧筛窦粘膜增厚，右侧上颌窦粘膜增厚，内见大量分泌物。双眼球后未见占位性病变。“左肺鳞癌放化疗后”，左上肺门周围软组织灶，范围较前未见明显变化。左肺上叶条索及空腔影，考虑纤维灶并肺大泡可能性大，较前未见明显变化。右肺尖及左下肺少许斑片影、条索影，较前未见明显变化。右上肺及左下肺背段斑片影，考虑炎症，较前吸收。纵隔淋巴结，考虑转移瘤，较前缩小。颅脑未见明确异常。副鼻窦炎。</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -7417,7 +7417,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>右肺上叶尖段纵隔旁周围型MT可能;右侧肺门、纵隔双侧锁骨区淋巴结转移;第3颈椎转移;两肺上叶、左肺下叶炎性病变可能;两肺磨玻璃小结节,建议随访;两肺小气囊;甲状腺左叶中部小腺瘤可能,请结合超声检查。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼外肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。双侧上颌窦粘膜轻度增厚,考虑为慢性炎症,其余副鼻窦未见明显异常。颈部PET/CT图像示双侧锁骨区见多发糖代谢增高的肿大淋巴结,较大者位于左侧,最大SUV值约为14.4,大小约为52.1MM×25.5MM;甲状腺形态如常,左叶中部见一枚大小约为6.8MM×6.0MM的小低密度影;口咽、喉咽部无殊。胸部PET/CT图像示两肺纹理增粗,右肺上叶尖段见一枚大小约为14.9MM×4.4MM、糖代谢异常增高的软组织结节影,最大SUV值约为6.8,密度欠均匀,边缘呈分叶状,并与右肺尖胸膜分界欠清;左肺上叶尖后段见大小约为11.0MM×8.8MM、不伴糖代谢增高的斑片影,局部似见气管纠集征象;右肺上叶后段见一枚大小约为10.3MM×7.0MM、不伴糖代谢增高的斑片影,内密度欠均匀,邻近似见胸膜牵拉;左肺下叶基底段近肺门处见范围约为23.9MM×19.2MM的条片状高密度影,最大SUV值约为1.7;其余两肺见多发不伴糖代谢增高的小磨玻璃结节影,较大者位于左肺上叶舌段,直径约为6.0MM;左肺上叶尖后段见一枚直径约为2.3MM的不规则小结节,两肺散在囊状透亮无肺纹理区;右侧肺门及纵隔(上纵隔血管间隙、血管前间隙、主肺动脉窗、主动脉弓左及隆突下)见多发糖代谢异常增高的肿大淋巴结,糖代谢较高及较大者位于隆突下,最大SUV值约为13.4,大小约为48.1MM×21.7MM;左侧肺门、双侧胸壁、腋窝等无殊。双侧胸膜无增厚;双侧胸腔无积液;心脏无明显增大;双侧腋窝无明显肿大淋巴结。腹部PET图像示胃壁呈生理性糖代谢增强;肠道呈生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整,各叶比例匀称,实质内未见明显占位;肝内外胆管无扩张;脾脏不大,密度均,未见明显占位;胆囊、胰、双肾、肾上腺无殊;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚;肠道呈生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈,壁光滑无增厚;双侧精囊腺形态可;双侧膀胱精囊三角对称;前列腺无明显增大,密度均;盆腔内未见占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET/CT图像示第3颈椎左侧附件见溶骨性骨质破坏伴糖代谢异常增高,最大SUV值约为8.7;其余骨骼未见糖代谢异常增高或骨质破坏吸收征象。</t>
+          <t>右肺上叶尖段纵隔旁周围型MT可能；右侧肺门、纵隔双侧锁骨区淋巴结转移；第3颈椎转移；两肺上叶、左肺下叶炎性病变可能；两肺磨玻璃小结节，建议随访；两肺小气囊；甲状腺左叶中部小腺瘤可能，请结合超声检查。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。双侧上颌窦粘膜轻度增厚，考虑为慢性炎症，其余副鼻窦未见明显异常。颈部PET/CT图像示双侧锁骨区见多发糖代谢增高的肿大淋巴结，较大者位于左侧，最大SUV值约为14.4，大小约为52.1MM×25.5MM；甲状腺形态如常，左叶中部见一枚大小约为6.8MM×6.0MM的小低密度影；口咽、喉咽部无殊。胸部PET/CT图像示两肺纹理增粗，右肺上叶尖段见一枚大小约为14.9MM×4.4MM、糖代谢异常增高的软组织结节影，最大SUV值约为6.8，密度欠均匀，边缘呈分叶状，并与右肺尖胸膜分界欠清；左肺上叶尖后段见大小约为11.0MM×8.8MM、不伴糖代谢增高的斑片影，局部似见气管纠集征象；右肺上叶后段见一枚大小约为10.3MM×7.0MM、不伴糖代谢增高的斑片影，内密度欠均匀，邻近似见胸膜牵拉；左肺下叶基底段近肺门处见范围约为23.9MM×19.2MM的条片状高密度影，最大SUV值约为1.7；其余两肺见多发不伴糖代谢增高的小磨玻璃结节影，较大者位于左肺上叶舌段，直径约为6.0MM；左肺上叶尖后段见一枚直径约为2.3MM的不规则小结节，两肺散在囊状透亮无肺纹理区；右侧肺门及纵隔(上纵隔血管间隙、血管前间隙、主肺动脉窗、主动脉弓左及隆突下)见多发糖代谢异常增高的肿大淋巴结，糖代谢较高及较大者位于隆突下，最大SUV值约为13.4，大小约为48.1MM×21.7MM；左侧肺门、双侧胸壁、腋窝等无殊。双侧胸膜无增厚；双侧胸腔无积液；心脏无明显增大；双侧腋窝无明显肿大淋巴结。腹部PET图像示胃壁呈生理性糖代谢增强；肠道呈生理性糖代谢增强；肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内未见明显占位；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；胆囊、胰、双肾、肾上腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈，壁光滑无增厚；双侧精囊腺形态可；双侧膀胱精囊三角对称；前列腺无明显增大，密度均；盆腔内未见占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示第3颈椎左侧附件见溶骨性骨质破坏伴糖代谢异常增高，最大SUV值约为8.7；其余骨骼未见糖代谢异常增高或骨质破坏吸收征象。</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -7439,7 +7439,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>乳腺99MMTC-MIBIBSGI平面显像示:右侧乳腺外上象限MT可能性大,右侧腋窝淋巴结转移可能,请结合临床;左侧乳腺平面显像未见明显异常。显像方法:静脉注射99MMTC-MIBI10分钟后应用DILON乳腺机行双侧乳腺及腋窝平面显像,RCC、LCC、RMLO、LMLO位采集信息,采集时间均为6分钟/体位。影像所见:双侧乳腺显影清晰,右侧乳腺放射性分布不均匀,外上象限见结节状放射性异常浓聚灶,RCC位及RMLO位T/N比值分别为5.9和6.8,右侧腋窝见放射性异常浓聚灶;左侧乳腺放射性分布基本均匀,未见明显放射性异常浓聚灶;左侧腋窝未见明显放射性异常浓聚灶。</t>
+          <t>乳腺99MMTC-MIBIBSGI平面显像示：右侧乳腺外上象限MT可能性大，右侧腋窝淋巴结转移可能，请结合临床；左侧乳腺平面显像未见明显异常。显像方法：静脉注射99MMTC-MIBI10分钟后应用DILON乳腺机行双侧乳腺及腋窝平面显像，RCC、LCC、RMLO、LMLO位采集信息，采集时间均为6分钟/体位。影像所见：双侧乳腺显影清晰，右侧乳腺放射性分布不均匀，外上象限见结节状放射性异常浓聚灶，RCC位及RMLO位T/N比值分别为5.9和6.8，右侧腋窝见放射性异常浓聚灶；左侧乳腺放射性分布基本均匀，未见明显放射性异常浓聚灶；左侧腋窝未见明显放射性异常浓聚灶。</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -7456,7 +7456,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>左肺癌术后:1、纵隔7区、左肺门、左心包旁增大淋巴结伴代谢活跃,考虑转移;右肺多发小结节,未见高代谢,随访。2、需与术后改变鉴别并密切随访:左胸腔包裹性积液;左侧胸壁及左侧6、7后肋术区代谢增高。3、右肺气肿。心包少量积液。肝小囊肿。肛门部痔疮。椎体少许骨质增生。4、垂体区软组织结节伴代谢活跃,垂体瘤?请结合垂体MRI。余脑代谢未见明显异常。空腹6小时以上,静脉注射显像剂,平静休息60MMIN后行全身PET及CT断层显像,PET图像经衰减校正及重建后,将PET及CT图像行多平面、多幅显示:左肺术后,左侧胸腔包裹性积液,边缘部伴轻度摄取,SUVMAX2.3。右肺气肿,右肺散在小结节,较大者约3MM,未见异常浓聚。右侧胸膜无增厚,胸水征阴性。纵隔7区、左肺门、左心包旁见增大淋巴结伴放射性浓聚,SUVMAX3.6-13.02,7区较大者约2.5CM×1.7CM。心肌浅淡显影,心包少量积液。左胸壁术区放射性增高,SUVMAX2.6。左6、7后肋术区放射性浓聚,SUVMAX4.7。大脑形态如常,皮层各叶放射性分布均匀。皮层下各神经核团显影清晰,放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深,白质未见明显低密度影,中线无移位。脑室无扩大,基底节区显示对称。小脑显影如常,两侧小脑对称。垂体区见软组织结节伴放射性浓聚,SUVMAX20.56,结节大小约1.6CM×1.2CM。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。甲状腺两叶不大,形态可,腺实质内未见异常放射性增高灶。颈部及锁骨上区未见明显异常淋巴结浓聚。胃充盈好,胃壁显影如常。肝脏形态可,轮廓光整,肝叶比例正常,肝内多发小囊性低密度灶,放射性稀疏,肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常,密度均匀,胆囊壁无增厚。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常,膀胱壁无增厚。前列腺大小正常,放射性分布大致正常。两侧腹股沟无异常淋巴结显示。肛门部放射性增高,SUVMAX5.5。椎体边缘少许骨质增生。项韧带可见钙化。上、下肢关节带大致正常。</t>
+          <t>左肺癌术后：1、纵隔7区、左肺门、左心包旁增大淋巴结伴代谢活跃，考虑转移；右肺多发小结节，未见高代谢，随访。2、需与术后改变鉴别并密切随访：左胸腔包裹性积液；左侧胸壁及左侧6、7后肋术区代谢增高。3、右肺气肿。心包少量积液。肝小囊肿。肛门部痔疮。椎体少许骨质增生。4、垂体区软组织结节伴代谢活跃，垂体瘤?请结合垂体MRI。余脑代谢未见明显异常。空腹6小时以上，静脉注射显像剂，平静休息60MMIN后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：左肺术后，左侧胸腔包裹性积液，边缘部伴轻度摄取，SUVMAX2.3。右肺气肿，右肺散在小结节，较大者约3MM，未见异常浓聚。右侧胸膜无增厚，胸水征阴性。纵隔7区、左肺门、左心包旁见增大淋巴结伴放射性浓聚，SUVMAX3.6-13.02，7区较大者约2.5CM×1.7CM。心肌浅淡显影，心包少量积液。左胸壁术区放射性增高，SUVMAX2.6。左6、7后肋术区放射性浓聚，SUVMAX4.7。大脑形态如常，皮层各叶放射性分布均匀。皮层下各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，两侧小脑对称。垂体区见软组织结节伴放射性浓聚，SUVMAX20.56，结节大小约1.6CM×1.2CM。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。颈部及锁骨上区未见明显异常淋巴结浓聚。胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝内多发小囊性低密度灶，放射性稀疏，肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常，膀胱壁无增厚。前列腺大小正常，放射性分布大致正常。两侧腹股沟无异常淋巴结显示。肛门部放射性增高，SUVMAX5.5。椎体边缘少许骨质增生。项韧带可见钙化。上、下肢关节带大致正常。</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -7473,7 +7473,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>左乳多发占位,符合乳癌。双肺多发结节,考虑转移。左腋下多发肿大淋巴结,考虑转移。纵隔、左侧锁骨上区多发淋巴结,建议追查。左乳外象限多发不规则肿块,较大者约39MM×22MM(IMA31)。双肺见多发大小不等结节,较大者约17MM×14MM(IMA44)。纵隔4、5、7组及左侧锁骨上区见多发淋巴结,小于10MM。左腋下见多发肿大淋巴结,较大者约26MM×20MM(IMA18)。双侧胸膜光滑,未见胸水征象。扫及胸廓诸骨未见明确破坏征象。</t>
+          <t>左乳多发占位，符合乳癌。双肺多发结节，考虑转移。左腋下多发肿大淋巴结，考虑转移。纵隔、左侧锁骨上区多发淋巴结，建议追查。左乳外象限多发不规则肿块，较大者约39MM×22MM(IMA31)。双肺见多发大小不等结节，较大者约17MM×14MM(IMA44)。纵隔4、5、7组及左侧锁骨上区见多发淋巴结，小于10MM。左腋下见多发肿大淋巴结，较大者约26MM×20MM(IMA18)。双侧胸膜光滑，未见胸水征象。扫及胸廓诸骨未见明确破坏征象。</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -7495,7 +7495,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>1、左肺上叶支气管走行区高代谢结节,倾向恶性(中央型肺癌?)。左肺上叶支气管截断,远端肺不张。左肺门淋巴结转移可能大。2、余双肺散在少许小结节及微小结节,不伴代谢,性质待定,胸CT随访。3、余躯干部及脑部未见明显异常代谢征象。4、双上颌窦炎性病变。副脾(两个)。前列腺钙化。空腹6小时以上,静脉注射显像剂,平静休息60MMIN后行全身PET及CT断层显像,PET图像经衰减校正及重建后,将PET及CT图像行多平面、多幅显示:左肺上叶支气管走行区可见浓聚结节,SUVMAX4.7,直径约1.2CM(PET图像),左肺上叶支气管截断,远端肺不张。余双肺散在少许小结节及微小结节,未见明显放射性摄取。左肺门见轻度浓聚小淋巴结,SUVMAX2.9,直径约1.1CM,纵隔及右肺门未见肿大或异常浓聚淋巴结。心肌显影。双胸膜轻度弥漫增厚,胸水征阴性。大脑形态如常,皮层各叶放射性分布均匀。皮层下各神经核团显影清晰,放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深,白质未见明显低密度影,中线无移位。脑室无扩大,基底节区显示对称。小脑显影如常,两侧小脑对称。双上颌窦内可见软组织密度影。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。甲状腺两叶不大,形态可,腺实质内未见异常放射性增高灶。双颈部及锁骨区未见明显异常淋巴结浓聚。胃充盈好,胃壁显影如常。肝脏形态可,轮廓光整,肝叶比例正常,肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常,密度均匀,胆囊壁无增厚。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀,脾门部见副脾结节(两个)。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常,膀胱壁无增厚。前列腺大小正常,内见点状钙化,放射性分布未见异常。两侧腹股沟无异常淋巴结显示。视野内轴心骨未见异常放射性浓聚。</t>
+          <t>1、左肺上叶支气管走行区高代谢结节，倾向恶性(中央型肺癌?)。左肺上叶支气管截断，远端肺不张。左肺门淋巴结转移可能大。2、余双肺散在少许小结节及微小结节，不伴代谢，性质待定，胸CT随访。3、余躯干部及脑部未见明显异常代谢征象。4、双上颌窦炎性病变。副脾(两个)。前列腺钙化。空腹6小时以上，静脉注射显像剂，平静休息60MMIN后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：左肺上叶支气管走行区可见浓聚结节，SUVMAX4.7，直径约1.2CM(PET图像)，左肺上叶支气管截断，远端肺不张。余双肺散在少许小结节及微小结节，未见明显放射性摄取。左肺门见轻度浓聚小淋巴结，SUVMAX2.9，直径约1.1CM，纵隔及右肺门未见肿大或异常浓聚淋巴结。心肌显影。双胸膜轻度弥漫增厚，胸水征阴性。大脑形态如常，皮层各叶放射性分布均匀。皮层下各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，两侧小脑对称。双上颌窦内可见软组织密度影。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。双颈部及锁骨区未见明显异常淋巴结浓聚。胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀，脾门部见副脾结节(两个)。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常，膀胱壁无增厚。前列腺大小正常，内见点状钙化，放射性分布未见异常。两侧腹股沟无异常淋巴结显示。视野内轴心骨未见异常放射性浓聚。</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -7517,7 +7517,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>1.结合临床,左乳癌术后改变;术区胸壁略示增厚并不均匀强化,较前2016-12-29基本变化不著;右肺占位,考虑转移并纵隔淋巴结转移,较前均好转2.心脏增大,请结合临床。3.考虑左肺炎症,局部加重4.右乳钙化灶。左乳术后,术区胸壁略示不规则增厚,肌肉间隙模糊,增强扫描呈不均匀强化。左侧腋窝结构紊乱,未见异常强化灶。右乳内示小颗粒状高密度灶。右肺上叶纵隔旁示长径约2.0CM软组织密度影,增强呈不均质强化,边缘毛糙。左肺上叶示片絮影。右腋窝、双侧内乳区、双侧肺门未见增大淋巴结。纵隔内示大者短径约0.9CM淋巴结。心脏体积显示增大。</t>
+          <t>1.结合临床，左乳癌术后改变；术区胸壁略示增厚并不均匀强化，较前2016-12-29基本变化不著；右肺占位，考虑转移并纵隔淋巴结转移，较前均好转2.心脏增大，请结合临床。3.考虑左肺炎症，局部加重4.右乳钙化灶。左乳术后，术区胸壁略示不规则增厚，肌肉间隙模糊，增强扫描呈不均匀强化。左侧腋窝结构紊乱，未见异常强化灶。右乳内示小颗粒状高密度灶。右肺上叶纵隔旁示长径约2.0CM软组织密度影，增强呈不均质强化，边缘毛糙。左肺上叶示片絮影。右腋窝、双侧内乳区、双侧肺门未见增大淋巴结。纵隔内示大者短径约0.9CM淋巴结。心脏体积显示增大。</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -7534,7 +7534,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>左肺下叶可见结节影,边缘光滑,大小约12MM×12MM(IM36)。左肺下叶后基底段胸膜下可见结节影,范围约14MM×9MM(IM43),边缘可见毛刺及分叶,邻近胸膜受牵拉。右肺下叶可见多发小结节影(IM44、45),较大约6MM(IM44)。双肺上叶胸膜下可见多发囊状透光区。余肺内透亮度均匀,未见结节或实变影。纵隔4L、6、左肺门可见多发肿大淋巴结,较大约38MM×26MM(IM28)。右肺门、锁骨上区未见肿大淋巴结。双侧胸膜光滑,未见胸水征象。扫及胸廓诸骨未见明确破坏征象。肝实质内可见多发小圆形低密度结节影。左肺下叶结节,考虑恶性,周围型肺癌可能大。左肺多发转移;右肺转移待排,随诊。纵隔及左肺门多发淋巴结转移。双肺上叶间隔旁肺气肿。肝脏多发低密度结节影,请结合腹部检查。</t>
+          <t>左肺下叶可见结节影，边缘光滑，大小约12MM×12MM(IM36)。左肺下叶后基底段胸膜下可见结节影，范围约14MM×9MM(IM43)，边缘可见毛刺及分叶，邻近胸膜受牵拉。右肺下叶可见多发小结节影(IM44、45)，较大约6MM(IM44)。双肺上叶胸膜下可见多发囊状透光区。余肺内透亮度均匀，未见结节或实变影。纵隔4L、6、左肺门可见多发肿大淋巴结，较大约38MM×26MM(IM28)。右肺门、锁骨上区未见肿大淋巴结。双侧胸膜光滑，未见胸水征象。扫及胸廓诸骨未见明确破坏征象。肝实质内可见多发小圆形低密度结节影。左肺下叶结节，考虑恶性，周围型肺癌可能大。左肺多发转移；右肺转移待排，随诊。纵隔及左肺门多发淋巴结转移。双肺上叶间隔旁肺气肿。肝脏多发低密度结节影，请结合腹部检查。</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -7556,7 +7556,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>右肺下叶背段肿物,中心型肺癌可能大;双肺多发结节,转移可能大,追查;右肺门肿大淋巴结,转移;气管隆突下淋巴结,性质待定,转移不除外。双侧腋窝多发小淋巴结,倾向良性,追查。胆囊结石。右肺下叶背段支气管狭窄、闭塞,局部可见不规则软组织密度肿块,密度不均,内部可见不规则空洞,与肺门肿大淋巴结融合,大小约41MM×41MM(IMA33);余双肺野见多发模糊结节。纵隔气管隆突下见一淋巴结,约16MM×8MM(IMA35),双侧腋窝见多发小淋巴结,小于10MM。右侧胸膜欠光滑,左侧胸膜光滑,双侧未见胸水。胸壁诸骨未见骨质破坏灶。胆囊颈见高密度结节灶。</t>
+          <t>右肺下叶背段肿物，中心型肺癌可能大；双肺多发结节，转移可能大，追查；右肺门肿大淋巴结，转移；气管隆突下淋巴结，性质待定，转移不除外。双侧腋窝多发小淋巴结，倾向良性，追查。胆囊结石。右肺下叶背段支气管狭窄、闭塞，局部可见不规则软组织密度肿块，密度不均，内部可见不规则空洞，与肺门肿大淋巴结融合，大小约41MM×41MM(IMA33)；余双肺野见多发模糊结节。纵隔气管隆突下见一淋巴结，约16MM×8MM(IMA35)，双侧腋窝见多发小淋巴结，小于10MM。右侧胸膜欠光滑，左侧胸膜光滑，双侧未见胸水。胸壁诸骨未见骨质破坏灶。胆囊颈见高密度结节灶。</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -7578,7 +7578,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>1.结合病史,考虑右乳癌并同侧腋窝淋巴转移(BI-RADSIV级)。2.双乳点片状强化灶(BI-RADSII级)。右乳外上象限可见异常信号灶,边缘分叶、毛糙,最大截面约2.7CM×2.1CM,表现为T1WI、T2WI等信号,压脂序列高信号,DWI高信号,增强后可见不均匀强化,动态增强曲线呈流出型;右乳晕区皮肤增厚。余双侧乳腺可见散在点片状强化灶。右腋窝可见多个肿大淋巴结,大者约0.8CM。左侧腋窝可见多发小淋巴结,其内可见偏心性脂肪信号。余未见异常。</t>
+          <t>1.结合病史，考虑右乳癌并同侧腋窝淋巴转移(BI-RADSIV级)。2.双乳点片状强化灶(BI-RADSII级)。右乳外上象限可见异常信号灶，边缘分叶、毛糙，最大截面约2.7CM×2.1CM，表现为T1WI、T2WI等信号，压脂序列高信号，DWI高信号，增强后可见不均匀强化，动态增强曲线呈流出型；右乳晕区皮肤增厚。余双侧乳腺可见散在点片状强化灶。右腋窝可见多个肿大淋巴结，大者约0.8CM。左侧腋窝可见多发小淋巴结，其内可见偏心性脂肪信号。余未见异常。</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -7600,7 +7600,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>考虑为右侧乳腺癌并右腋窝淋巴结转移,请结合临床。双侧乳腺深部见囊带状液性信号影,其内信号欠均匀,似见少许条片影;病变边缘不光滑,见多发囊状、条片状类似信号,边界不清;右乳外上象限浅表可见不规则团块影,大小约为3.6CM×2.7CM,T2WI呈高信号,增强后明显强化,动态增强曲线呈速升型。右侧腋窝区见数个肿大淋巴结,大者直径约为1.2CM。</t>
+          <t>考虑为右侧乳腺癌并右腋窝淋巴结转移，请结合临床。双侧乳腺深部见囊带状液性信号影，其内信号欠均匀，似见少许条片影；病变边缘不光滑，见多发囊状、条片状类似信号，边界不清；右乳外上象限浅表可见不规则团块影，大小约为3.6CM×2.7CM，T2WI呈高信号，增强后明显强化，动态增强曲线呈速升型。右侧腋窝区见数个肿大淋巴结，大者直径约为1.2CM。</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -7622,7 +7622,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼内肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结;口咽、喉咽部无占位;甲状腺无肿大,左右侧下极各见一低密度灶,大小分别为7.9MM×6.4MM×9.5MM和4.2MM×3.0MM×3.11MM。胸部PET/CT图像示双侧乳腺切除术后,胸壁呈术后改变,左侧胸壁约第4肋腋段外侧见一糖代谢轻度增高的结节,大小约为12.3MM×9.2MM,最大SUV值为1.3;双肺纹理清晰,左肺下叶背段近斜裂见两枚糖代谢轻度增高的小结节,边界光滑,大小分别为8.4MM×2.9MM和8.8MM×5.2MM,最大SUV值均为1.2;右肺上叶尖段见少许不伴糖代谢增高的条片影及钙化灶;各级支气管腔通畅;纵隔气管胸廓入口处、气管前间隙、主肺动脉窗、气管隆突下、胸主动脉旁及双肺门多发肿大淋巴结,伴不同程度糖代谢增高,糖代谢最高者位于胸主动脉旁(约第8胸椎水平),最大SUV值为7.6,大小约为11.9MM×9.1MM;最大者位于气管隆突下,大小约为14.2MM×10.7MM,最大SUV值约为6.2;双侧胸膜无增厚;双侧胸腔无积液;心脏无明显增大;双侧腋窝未见明显糖代谢增高及肿大淋巴结。腹部PET/CT图像示胃壁均匀性轻度糖代谢生理性增强;肠道呈线型生理性糖代谢增强;肝脏表面尚光整,左右叶多发糖代谢异常增高的低密度灶,较大者三枚分别位于右叶膈顶(2枚)及尾叶,大小分别为26.0MM×23.0MM、21.4MM×13.0MM和30.6MM×24.5MM,最大SUV值分别为8.0、5.8和9.4;右后叶包膜下另见一无糖代谢增高的低密度灶,边界欠清,大小约为8.3MM×6.5MM;肝内外胆管无扩张;脾脏不大,内见多发钙化,未见明显糖代谢增高及占位;左肾内见多发结节状致密影;胆囊、胰、双肾上腺、右肾、输尿管及大血管处未见明显糖代谢异常增高及占位;腹膜后未见明显糖代谢增高及肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁光滑无增厚;子宫和双附件区未见明显占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET/CT图像示第1骶椎右侧见溶骨性骨质破坏,局部骨皮质连续性中断,伴糖代谢异常增高,最大SUV值为6.9;余全身骨骼未见明显糖代谢增高及骨质破坏吸收吸收征象。双侧乳腺MT综合治疗后病例,结合病史,考虑为纵隔淋巴结转移、肝脏及第1骶骨转移;右侧胸壁结节及右肺下叶小结节,转移可能,请随访;双侧甲状腺良性病变,建议超声随访;右肺上叶慢性炎症及陈旧灶;肝脏右叶良性病变;脾脏多发钙化灶;左肾多发结石。</t>
+          <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，左右侧下极各见一低密度灶，大小分别为7.9MM×6.4MM×9.5MM和4.2MM×3.0MM×3.11MM。胸部PET/CT图像示双侧乳腺切除术后，胸壁呈术后改变，左侧胸壁约第4肋腋段外侧见一糖代谢轻度增高的结节，大小约为12.3MM×9.2MM，最大SUV值为1.3；双肺纹理清晰，左肺下叶背段近斜裂见两枚糖代谢轻度增高的小结节，边界光滑，大小分别为8.4MM×2.9MM和8.8MM×5.2MM，最大SUV值均为1.2；右肺上叶尖段见少许不伴糖代谢增高的条片影及钙化灶；各级支气管腔通畅；纵隔气管胸廓入口处、气管前间隙、主肺动脉窗、气管隆突下、胸主动脉旁及双肺门多发肿大淋巴结，伴不同程度糖代谢增高，糖代谢最高者位于胸主动脉旁(约第8胸椎水平)，最大SUV值为7.6，大小约为11.9MM×9.1MM；最大者位于气管隆突下，大小约为14.2MM×10.7MM，最大SUV值约为6.2；双侧胸膜无增厚；双侧胸腔无积液；心脏无明显增大；双侧腋窝未见明显糖代谢增高及肿大淋巴结。腹部PET/CT图像示胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝脏表面尚光整，左右叶多发糖代谢异常增高的低密度灶，较大者三枚分别位于右叶膈顶(2枚)及尾叶，大小分别为26.0MM×23.0MM、21.4MM×13.0MM和30.6MM×24.5MM，最大SUV值分别为8.0、5.8和9.4；右后叶包膜下另见一无糖代谢增高的低密度灶，边界欠清，大小约为8.3MM×6.5MM；肝内外胆管无扩张；脾脏不大，内见多发钙化，未见明显糖代谢增高及占位；左肾内见多发结节状致密影；胆囊、胰、双肾上腺、右肾、输尿管及大血管处未见明显糖代谢异常增高及占位；腹膜后未见明显糖代谢增高及肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁光滑无增厚；子宫和双附件区未见明显占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示第1骶椎右侧见溶骨性骨质破坏，局部骨皮质连续性中断，伴糖代谢异常增高，最大SUV值为6.9；余全身骨骼未见明显糖代谢增高及骨质破坏吸收吸收征象。双侧乳腺MT综合治疗后病例，结合病史，考虑为纵隔淋巴结转移、肝脏及第1骶骨转移；右侧胸壁结节及右肺下叶小结节，转移可能，请随访；双侧甲状腺良性病变，建议超声随访；右肺上叶慢性炎症及陈旧灶；肝脏右叶良性病变；脾脏多发钙化灶；左肾多发结石。</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -7639,7 +7639,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>右下肺见巨大团块状软组织肿块,边界不清,见毛刺征,呈分叶状,大小约45MM×51MM,增强扫描明显强化。双肺上叶、右肺下叶见多发结节影,较大者直径约9MM,增强扫描明显强化。右肺中叶内侧段、左肺上叶下舌段胸膜下见小结节影。气管及支气管分支通畅。双侧锁骨上、右上气管旁、主动脉弓旁、双下气管旁、主肺动脉窗、双肺门见多发淋巴结,较大者位于右肺门,大小约19MM×9MM。双侧腋窝未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,未见明显异常密度灶,增强扫描未见异常强化影。肝内胆管正常,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。左肾实质见一类圆形低密度病变,边界清晰,直径约5MM,增强扫描未见强化。右肾所见正常。双肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围内骨质未见明显破坏。右下肺团块状软组织肿块,考虑肺癌。双肺上叶、右肺下叶多发结节影,考虑转移瘤可能。右肺中叶内侧段、左肺上叶下舌段胸膜下小结节影,考虑增殖灶。纵隔、双肺门多发淋巴结,不排除转移可能。左肾小囊肿。肝脏未见明显病变。</t>
+          <t>右下肺见巨大团块状软组织肿块，边界不清，见毛刺征，呈分叶状，大小约45MM×51MM，增强扫描明显强化。双肺上叶、右肺下叶见多发结节影，较大者直径约9MM，增强扫描明显强化。右肺中叶内侧段、左肺上叶下舌段胸膜下见小结节影。气管及支气管分支通畅。双侧锁骨上、右上气管旁、主动脉弓旁、双下气管旁、主肺动脉窗、双肺门见多发淋巴结，较大者位于右肺门，大小约19MM×9MM。双侧腋窝未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，未见明显异常密度灶，增强扫描未见异常强化影。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。左肾实质见一类圆形低密度病变，边界清晰，直径约5MM，增强扫描未见强化。右肾所见正常。双肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围内骨质未见明显破坏。右下肺团块状软组织肿块，考虑肺癌。双肺上叶、右肺下叶多发结节影，考虑转移瘤可能。右肺中叶内侧段、左肺上叶下舌段胸膜下小结节影，考虑增殖灶。纵隔、双肺门多发淋巴结，不排除转移可能。左肾小囊肿。肝脏未见明显病变。</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -7661,7 +7661,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>右后中下纵隔占位,考虑恶性,转移?病变同食道分界不清,侵犯左心房、左下肺静脉及纵隔胸膜,建议活检。右肺上叶尖段结节,恶性不除外。两肺肺气肿、肺大泡;肺内小结节,建议追查。右侧少量胸腔积液,引流管植入术后。纵隔及肺门肿大淋巴结,倾向转移。贲门左及纵隔小淋巴结,转移不除外。双侧肾上腺结节,考虑转移。右后中下纵隔见异常不规则软组织肿块影,较大层面约75MM×63MM(IM42),增强扫描可见强化,同周围食道分界不清,病变侵犯左心房、左下肺静脉及纵隔胸膜,向肺实质内结节状突起,交界面毛糙。右下肺气管血管束旁可见软组织密度(IM37),与主动脉接触面小于90度。纵隔及肺门另见多发淋巴结,较大者约12MM×11MM(IM31)。两肺肺气肿,可见局限性肺大泡。右肺上叶尖段可见毛刺结节灶,大小约18MM×15MM(IMA16);另双肺可见数个小结节灶(IM24、37)。双侧锁骨上区及双腋下未见肿大淋巴结。右侧胸膜欠光整,右侧少量胸腔积液,可见胸腔引流管影。左侧胸膜光滑,未见胸水征象。扫及胸廓诸骨未见明确破坏征象。双侧肾上腺可见结节灶,左侧较大者约21MM×20MM(IMA60)。</t>
+          <t>右后中下纵隔占位，考虑恶性，转移?病变同食道分界不清，侵犯左心房、左下肺静脉及纵隔胸膜，建议活检。右肺上叶尖段结节，恶性不除外。两肺肺气肿、肺大泡；肺内小结节，建议追查。右侧少量胸腔积液，引流管植入术后。纵隔及肺门肿大淋巴结，倾向转移。贲门左及纵隔小淋巴结，转移不除外。双侧肾上腺结节，考虑转移。右后中下纵隔见异常不规则软组织肿块影，较大层面约75MM×63MM(IM42)，增强扫描可见强化，同周围食道分界不清，病变侵犯左心房、左下肺静脉及纵隔胸膜，向肺实质内结节状突起，交界面毛糙。右下肺气管血管束旁可见软组织密度(IM37)，与主动脉接触面小于90度。纵隔及肺门另见多发淋巴结，较大者约12MM×11MM(IM31)。两肺肺气肿，可见局限性肺大泡。右肺上叶尖段可见毛刺结节灶，大小约18MM×15MM(IMA16)；另双肺可见数个小结节灶(IM24、37)。双侧锁骨上区及双腋下未见肿大淋巴结。右侧胸膜欠光整，右侧少量胸腔积液，可见胸腔引流管影。左侧胸膜光滑，未见胸水征象。扫及胸廓诸骨未见明确破坏征象。双侧肾上腺可见结节灶，左侧较大者约21MM×20MM(IMA60)。</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -7683,7 +7683,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>肝实质密度普遍降低,肝左右叶见多发结节状及团块状稍低密度影,最大位于右叶近膈顶,长径约7CM,动态增强后病灶呈周边环形强化,另肝左外叶见一无强化的囊状低密度灶,肝内血管显示可;脾脏未见肿大,密度均匀;胆囊底壁可疑增厚伴中度强化,胆管未见扩张;双肾盂内见点状致密影,胰腺无殊;子宫体积稍大,增强后宫颈处见多发类圆形低密度灶,后腹膜未见肿大淋巴结;腹腔内、肠系膜根部见多发稍增大淋巴结,盆腔内少量积液。右盆部皮下脂肪层内见结节灶。右乳腺MT术后,肝内多发转移灶,腹腔多发增大淋巴结,右侧胸腔及盆腔少量积液,总体较老片(16-12-20)进展;轻度脂肪肝,肝囊肿,双肾小结石,子宫颈多发小囊肿,胆囊腺肌症可能,同前相仿;右盆部皮下结节灶,较前增大。</t>
+          <t>肝实质密度普遍降低，肝左右叶见多发结节状及团块状稍低密度影，最大位于右叶近膈顶，长径约7CM，动态增强后病灶呈周边环形强化，另肝左外叶见一无强化的囊状低密度灶，肝内血管显示可；脾脏未见肿大，密度均匀；胆囊底壁可疑增厚伴中度强化，胆管未见扩张；双肾盂内见点状致密影，胰腺无殊；子宫体积稍大，增强后宫颈处见多发类圆形低密度灶，后腹膜未见肿大淋巴结；腹腔内、肠系膜根部见多发稍增大淋巴结，盆腔内少量积液。右盆部皮下脂肪层内见结节灶。右乳腺MT术后，肝内多发转移灶，腹腔多发增大淋巴结，右侧胸腔及盆腔少量积液，总体较老片(16-12-20)进展；轻度脂肪肝，肝囊肿，双肾小结石，子宫颈多发小囊肿，胆囊腺肌症可能，同前相仿；右盆部皮下结节灶，较前增大。</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -7700,7 +7700,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>右肺癌化疗后,右肺下叶肿块,较前未见明显变化。右下肺叶背段小结节,可疑转移瘤,较前未见明显变化。双侧锁骨上窝、纵隔、双肺门多发淋巴结,较前未见明显变化。右肺上叶后段小钙化灶。肝脏未见明显病变。双肾小结石,双肾小囊肿。右肺癌化疗后,与2014-06-20CT片对比:右肺下叶见一肿块,大小约29MM×47MM,较前未见明显变化,边界清晰,边缘见毛刺及分叶,增强扫描呈轻度强化,肿块外侧见片状致密影及纤维条索,边界稍模糊。右下肺叶背段见一小结节,直径约4MM,轮廓尚光整,密度尚均匀。右肺上叶后段见一斑点状钙化灶。余双肺纹理清晰,肺内未见实质性病变。右肺下叶外基底段支气管部分分支变窄,气管及余支气管分支通畅。双侧锁骨上窝、右侧气管食管沟、双上下气管旁、血管前、隆突下、双肺门见多发肿大淋巴结,最大者约24MM×19MM,边界不清,部分相互融合,增强扫描呈不均匀强化,较前未见明显变化。双侧胸腔未见积液,右下胸膜稍增厚,左侧胸膜未见增厚、粘连。肝脏形态、各叶比例未见异常,其外形轮廓光整,密度均匀,增强扫描未见异常强化灶。肝内外胆管未见异常,其内未见结石,胆囊未见异常。肝门区未见异常。门静脉未见异常。脾脏、胰腺大小、形态、密度未见异常,增强扫描未见异常强化。双侧肾上腺未见异常。双肾见数个斑点状致密灶,双肾见数个类圆形低密度灶,最大者约6MM×5MM,边界清晰,增强扫描未见强化。腹主动脉旁未见肿大淋巴结。扫描范围内所见骨质未见明确破坏征象。</t>
+          <t>右肺癌化疗后，右肺下叶肿块，较前未见明显变化。右下肺叶背段小结节，可疑转移瘤，较前未见明显变化。双侧锁骨上窝、纵隔、双肺门多发淋巴结，较前未见明显变化。右肺上叶后段小钙化灶。肝脏未见明显病变。双肾小结石，双肾小囊肿。右肺癌化疗后，与2014-06-20CT片对比：右肺下叶见一肿块，大小约29MM×47MM，较前未见明显变化，边界清晰，边缘见毛刺及分叶，增强扫描呈轻度强化，肿块外侧见片状致密影及纤维条索，边界稍模糊。右下肺叶背段见一小结节，直径约4MM，轮廓尚光整，密度尚均匀。右肺上叶后段见一斑点状钙化灶。余双肺纹理清晰，肺内未见实质性病变。右肺下叶外基底段支气管部分分支变窄，气管及余支气管分支通畅。双侧锁骨上窝、右侧气管食管沟、双上下气管旁、血管前、隆突下、双肺门见多发肿大淋巴结，最大者约24MM×19MM，边界不清，部分相互融合，增强扫描呈不均匀强化，较前未见明显变化。双侧胸腔未见积液，右下胸膜稍增厚，左侧胸膜未见增厚、粘连。肝脏形态、各叶比例未见异常，其外形轮廓光整，密度均匀，增强扫描未见异常强化灶。肝内外胆管未见异常，其内未见结石，胆囊未见异常。肝门区未见异常。门静脉未见异常。脾脏、胰腺大小、形态、密度未见异常，增强扫描未见异常强化。双侧肾上腺未见异常。双肾见数个斑点状致密灶，双肾见数个类圆形低密度灶，最大者约6MM×5MM，边界清晰，增强扫描未见强化。腹主动脉旁未见肿大淋巴结。扫描范围内所见骨质未见明确破坏征象。</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -7722,7 +7722,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>右乳癌术后转移化疗后,对比2016.04.07日片:肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度不均匀。肝S1见一不规则低密度灶,大小约25MM×22MM,边界稍模糊,密度欠均匀,增强扫描不均匀强化,较前缩小;肝S2、4、7、8段另见小类圆形稍低密度灶,边界模糊,增强扫描强化不明显或轻度强化,与前片对比,较前变化不明显,大者约6MM×5MM(SE8,IM23)。肝内胆管正常,胆囊大小正常,胆总管未见扩张。门静脉所见正常。肝门区见数枚淋巴结,增强扫描环状强化,较大者短径约7MM,较前稍增大。脾大小、形态正常,密度均匀。胰腺体积缩小,实质萎缩,密度均匀。双肾见多个小类圆形低密度影,边界清,大小约2~3MM,未见强化。双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。L1椎体见2个、L2椎体见1个类圆形高密度灶,大者直径约7MM,与前片对比,L1椎体新增一高密度灶,其余高密度灶较前变化不明显。右乳癌术后转移化疗后,对比2016.04.07日片:肝S1病灶较前缩小。肝S2、4、7、8段小低密度灶,较前变化不明显,建议复查或MR检查。肝门区淋巴结,较前稍增大,考虑转移可能性大。双肾多发小囊肿。L1、L2椎体高密度灶,与前片对比,L1椎体新增一高密度灶,其余高密度灶较前变化不明显,建议复查。</t>
+          <t>右乳癌术后转移化疗后，对比2016.04.07日片：肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝S1见一不规则低密度灶，大小约25MM×22MM，边界稍模糊，密度欠均匀，增强扫描不均匀强化，较前缩小；肝S2、4、7、8段另见小类圆形稍低密度灶，边界模糊，增强扫描强化不明显或轻度强化，与前片对比，较前变化不明显，大者约6MM×5MM(SE8，IM23)。肝内胆管正常，胆囊大小正常，胆总管未见扩张。门静脉所见正常。肝门区见数枚淋巴结，增强扫描环状强化，较大者短径约7MM，较前稍增大。脾大小、形态正常，密度均匀。胰腺体积缩小，实质萎缩，密度均匀。双肾见多个小类圆形低密度影，边界清，大小约2~3MM，未见强化。双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。L1椎体见2个、L2椎体见1个类圆形高密度灶，大者直径约7MM，与前片对比，L1椎体新增一高密度灶，其余高密度灶较前变化不明显。右乳癌术后转移化疗后，对比2016.04.07日片：肝S1病灶较前缩小。肝S2、4、7、8段小低密度灶，较前变化不明显，建议复查或MR检查。肝门区淋巴结，较前稍增大，考虑转移可能性大。双肾多发小囊肿。L1、L2椎体高密度灶，与前片对比，L1椎体新增一高密度灶，其余高密度灶较前变化不明显，建议复查。</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -7739,7 +7739,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>左乳癌术后双肺转移治疗后,与2013.11.15片对比:左侧乳腺缺失,左侧胸壁局部皮肤稍增厚,皮下脂肪间隙索条增多,边界欠清,大致同前。左侧胸壁约T10水平皮下脂肪间隙见一小片状软组织灶,边界欠清,大小约21MM×11MM,增强扫描轻度强化,较前未见明显变化。右乳未见明确异常。双侧腋窝未见肿大淋巴结。双肺上叶、右肺中叶及右肺下叶见多个肿块,边界欠清,最大者约30MM×23MM,边界欠清,轻度强化,较前缩小,双上肺尖肿块内可见支气管气相。气管和各支气管分支通畅。双侧锁骨上窝、双肺门、纵隔未见肿大淋巴结。双侧胸腔未见积液。肝脏形态未见异常,各叶比例在正常范围以内,其外形轮廓光整,密度欠均匀。肝S8见一片状低密度病变,大小约6MM×4MM,边界不清,增强扫描未见强化,大致同前。肝内胆管未见异常,胆囊壁不厚,胆总管未见扩张,其内未见结石。肝门区未见异常。门静脉及肝静脉所见未见异常。脾大小未见异常,密度均匀。胰腺大小、形态未见异常,密度均匀。双肾未见异常。双肾上腺未见异常。腹主动脉旁未见明显肿大的淋巴结。右侧第1~3前肋、左侧第2前肋见骨皮质密度稍增高,较前未见明显变化,右侧第5、7、8前肋骨质密度增高,较前新见。左乳癌术后双肺转移治疗后,与2013.11.15片对比:左前胸壁呈术后改变,较前变化不大。左侧胸壁约T10水平皮下脂肪间隙片状软组织灶,较前未见明显变化。双肺多发转移瘤,较前缩小。肝S8低密度灶,较前未见明显变化。右侧第1~3前肋、左侧第2前肋骨质密度稍增高,较前未见明显变化;右侧第5、7、8前肋骨质密度增高,较前新见,考虑转移可能大。</t>
+          <t>左乳癌术后双肺转移治疗后，与2013.11.15片对比：左侧乳腺缺失，左侧胸壁局部皮肤稍增厚，皮下脂肪间隙索条增多，边界欠清，大致同前。左侧胸壁约T10水平皮下脂肪间隙见一小片状软组织灶，边界欠清，大小约21MM×11MM，增强扫描轻度强化，较前未见明显变化。右乳未见明确异常。双侧腋窝未见肿大淋巴结。双肺上叶、右肺中叶及右肺下叶见多个肿块，边界欠清，最大者约30MM×23MM，边界欠清，轻度强化，较前缩小，双上肺尖肿块内可见支气管气相。气管和各支气管分支通畅。双侧锁骨上窝、双肺门、纵隔未见肿大淋巴结。双侧胸腔未见积液。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。肝S8见一片状低密度病变，大小约6MM×4MM，边界不清，增强扫描未见强化，大致同前。肝内胆管未见异常，胆囊壁不厚，胆总管未见扩张，其内未见结石。肝门区未见异常。门静脉及肝静脉所见未见异常。脾大小未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。双肾未见异常。双肾上腺未见异常。腹主动脉旁未见明显肿大的淋巴结。右侧第1~3前肋、左侧第2前肋见骨皮质密度稍增高，较前未见明显变化，右侧第5、7、8前肋骨质密度增高，较前新见。左乳癌术后双肺转移治疗后，与2013.11.15片对比：左前胸壁呈术后改变，较前变化不大。左侧胸壁约T10水平皮下脂肪间隙片状软组织灶，较前未见明显变化。双肺多发转移瘤，较前缩小。肝S8低密度灶，较前未见明显变化。右侧第1~3前肋、左侧第2前肋骨质密度稍增高，较前未见明显变化；右侧第5、7、8前肋骨质密度增高，较前新见，考虑转移可能大。</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -7756,7 +7756,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>右肺下叶切除术后+纵隔淋巴结清扫术后复查:右胸壁皮下见少量条索影,右下肺术后缺如,术区见条状金属影,术区支气管残端见软组织影,包绕右中叶支气管,增强扫描可见强化。右肺中叶内侧段见片状压缩的肺组织,增强扫描明显强化,右肺中叶外侧段见斑片状影,边界欠清。右上肺及左肺内未见实质性病变。右下叶支气管缺如,右中叶支气管变窄,余气管及支气管分支通畅。右上气管旁见低密度区,边界清,未见明显强化,右锁骨上窝、双侧气管食管沟、双上下气管旁、隆突下、右肺门、右心缘见多发淋巴结,最大者约15MM×11MM,增强扫描较明显强化。右侧胸腔见水样密度影,心包腔内见少量水样密度影,左侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏外形轮廓光整,密度均匀。肝内胆管正常,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。肝门区正常。门静脉未见异常。脾稍增大,前方见一小结节,密度及强化与脾脏相仿,大小约8MM×6MM。胰腺大小、形态正常,密度均匀。双肾及双肾上腺未见异常。腹主动脉旁未见肿大淋巴结。第3胸椎左侧份内见小圆形密影,直径约4MM,余扫描层面中胸腰椎、胸壁骨及软组织未见异常。右下肺癌术后,支气管残端软组织灶,疑为肿瘤病灶。右中肺叶节段性不张。右中肺叶斑片影,考虑炎症。右锁骨上窝纵隔、右肺门右缘多发淋巴结,可疑淋巴结转移。右侧胸腔积液;心包少量积液。第3胸椎高密度小结节,考虑骨岛可能性大,建议随诊。副脾。</t>
+          <t>右肺下叶切除术后+纵隔淋巴结清扫术后复查：右胸壁皮下见少量条索影，右下肺术后缺如，术区见条状金属影，术区支气管残端见软组织影，包绕右中叶支气管，增强扫描可见强化。右肺中叶内侧段见片状压缩的肺组织，增强扫描明显强化，右肺中叶外侧段见斑片状影，边界欠清。右上肺及左肺内未见实质性病变。右下叶支气管缺如，右中叶支气管变窄，余气管及支气管分支通畅。右上气管旁见低密度区，边界清，未见明显强化，右锁骨上窝、双侧气管食管沟、双上下气管旁、隆突下、右肺门、右心缘见多发淋巴结，最大者约15MM×11MM，增强扫描较明显强化。右侧胸腔见水样密度影，心包腔内见少量水样密度影，左侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏外形轮廓光整，密度均匀。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉未见异常。脾稍增大，前方见一小结节，密度及强化与脾脏相仿，大小约8MM×6MM。胰腺大小、形态正常，密度均匀。双肾及双肾上腺未见异常。腹主动脉旁未见肿大淋巴结。第3胸椎左侧份内见小圆形密影，直径约4MM，余扫描层面中胸腰椎、胸壁骨及软组织未见异常。右下肺癌术后，支气管残端软组织灶，疑为肿瘤病灶。右中肺叶节段性不张。右中肺叶斑片影，考虑炎症。右锁骨上窝纵隔、右肺门右缘多发淋巴结，可疑淋巴结转移。右侧胸腔积液；心包少量积液。第3胸椎高密度小结节，考虑骨岛可能性大，建议随诊。副脾。</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -7773,7 +7773,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>右乳癌术后、骨转移化疗后,广泛骨转移所见如上述,可疑右胸壁复发,右胸膜转移,右胸腔液气胸,右中肺及右下肺受压节段性不张,肝多发囊肿。右乳癌术后、骨转移、化疗后复查:右乳腺术后缺如,现右前胸壁皮下见结节状软组织影,注射造影剂后轻度强化;左乳腺内未见明显软组织肿;双锁上、双腋窝、内乳区未见明显肿大淋巴结。右胸膜轻度增厚,右胸腔见大量积液及少量积气,右中肺及右下肺节段性不张,右肺各叶支气管受压变窄;左肺纹理清晰,双肺未见结节影;气管及左肺各叶支气管分枝通畅;双肺门及纵隔未见明确肿大淋巴结;双侧胸腔未见积液;胸膜未见增厚。肝脏形态正常,比例正常,外形轮廓光整,密度均匀,快速注射造影剂后,动脉期未见明确异常强化灶,门脉期及平衡期未见明确低密度区,肝内见数个囊肿影,大小约为5MM×4MM至12MM×10MM,边界清晰,密度均匀,未见强化;肝内胆管未见扩张,胆囊大小正常,内未见结石影,胆总管未见扩张;肝门区未见肿大淋巴结;门静脉未见充盈缺损;脾增大,密度均匀;胰腺大小、形态正常,密度均匀;双肾大小、形态正常,排泌功能正常;双侧肾上腺大小、形态、密度正常;膈脚后、腹主动脉旁未见肿大淋巴结。扫描范围内胸骨、双侧肩胛骨、多个胸椎、腰椎、肋骨见成骨性骨质破坏征象。</t>
+          <t>右乳癌术后、骨转移化疗后，广泛骨转移所见如上述，可疑右胸壁复发，右胸膜转移，右胸腔液气胸，右中肺及右下肺受压节段性不张，肝多发囊肿。右乳癌术后、骨转移、化疗后复查：右乳腺术后缺如，现右前胸壁皮下见结节状软组织影，注射造影剂后轻度强化；左乳腺内未见明显软组织肿；双锁上、双腋窝、内乳区未见明显肿大淋巴结。右胸膜轻度增厚，右胸腔见大量积液及少量积气，右中肺及右下肺节段性不张，右肺各叶支气管受压变窄；左肺纹理清晰，双肺未见结节影；气管及左肺各叶支气管分枝通畅；双肺门及纵隔未见明确肿大淋巴结；双侧胸腔未见积液；胸膜未见增厚。肝脏形态正常，比例正常，外形轮廓光整，密度均匀，快速注射造影剂后，动脉期未见明确异常强化灶，门脉期及平衡期未见明确低密度区，肝内见数个囊肿影，大小约为5MM×4MM至12MM×10MM，边界清晰，密度均匀，未见强化；肝内胆管未见扩张，胆囊大小正常，内未见结石影，胆总管未见扩张；肝门区未见肿大淋巴结；门静脉未见充盈缺损；脾增大，密度均匀；胰腺大小、形态正常，密度均匀；双肾大小、形态正常，排泌功能正常；双侧肾上腺大小、形态、密度正常；膈脚后、腹主动脉旁未见肿大淋巴结。扫描范围内胸骨、双侧肩胛骨、多个胸椎、腰椎、肋骨见成骨性骨质破坏征象。</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -7790,7 +7790,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>左上肺癌胸膜复发化疗后复查,无旧片对比:左侧胸膜弥漫不规则增厚及结节样病灶,考虑转移灶。右肺上叶胸膜小结节,考虑良性增生结节。左侧胸腔积液。右乳腺缺如。肝内多发低密度灶,考虑血管瘤,基本同前。肾多发小囊肿。左上肺癌胸膜转移化疗后复查,无旧片对比:左上肺叶部分术后缺失,左侧胸膜、叶间裂见弥漫不规则增厚及结节样病灶,最大约26MM×24MM,界欠清,增强后不均匀明显强化。右肺上叶前段见胸膜见小结节,短径约4MM,界尚清,增强未见明显强化。肺内未见异常实质性改变。气管及支气管分支通畅,未见明显软组织肿物或受压变窄。双侧腋窝、双肺门及纵隔未见肿大淋巴结。左侧胸腔积液,右侧胸腔未见积液。右侧乳腺缺失,胸壁未见明显异常。左侧乳腺未见明显异常肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度欠均匀。肝S4、S7、S8见多个结节状病灶,最大约为13MM×12MM,增强扫描见结节状强化或边缘呈结节强化,静脉期强化范围增加,较前无明显变化。肝内胆管正常,其内未见结石影,胆囊大小正常,其内未见结石影。胆总管未见扩张,其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。双肾见多个小囊性病灶。双肾上腺所见正常。膈脚后未见肿大淋巴结。腹膜后未见肿大淋巴结。多个胸椎内见小点状稍高密度影,境界较清,较前未见明显变化。</t>
+          <t>左上肺癌胸膜复发化疗后复查，无旧片对比：左侧胸膜弥漫不规则增厚及结节样病灶，考虑转移灶。右肺上叶胸膜小结节，考虑良性增生结节。左侧胸腔积液。右乳腺缺如。肝内多发低密度灶，考虑血管瘤，基本同前。肾多发小囊肿。左上肺癌胸膜转移化疗后复查，无旧片对比：左上肺叶部分术后缺失，左侧胸膜、叶间裂见弥漫不规则增厚及结节样病灶，最大约26MM×24MM，界欠清，增强后不均匀明显强化。右肺上叶前段见胸膜见小结节，短径约4MM，界尚清，增强未见明显强化。肺内未见异常实质性改变。气管及支气管分支通畅，未见明显软组织肿物或受压变窄。双侧腋窝、双肺门及纵隔未见肿大淋巴结。左侧胸腔积液，右侧胸腔未见积液。右侧乳腺缺失，胸壁未见明显异常。左侧乳腺未见明显异常肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。肝S4、S7、S8见多个结节状病灶，最大约为13MM×12MM，增强扫描见结节状强化或边缘呈结节强化，静脉期强化范围增加，较前无明显变化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影。胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾见多个小囊性病灶。双肾上腺所见正常。膈脚后未见肿大淋巴结。腹膜后未见肿大淋巴结。多个胸椎内见小点状稍高密度影，境界较清，较前未见明显变化。</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -7807,7 +7807,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>右侧肺门区见一肿物,边界不清,最大层面大小约73MM×56MM,密度不均,增强扫描后较明显强化。肿物截断右肺中叶及下叶支气管,并包绕右肺动脉。右肺中叶及下叶不张体积缩小,呈片状高密度影,内见肺血管走形,不张肺组织与肺门肿物分界不清。右肺门、隆突下、血管前、右上下气管旁、左下气管旁及右侧锁骨上区见多发肿大淋巴结,融合呈团,部分与肺门肿物分界不清,大者大小约59MM×54MM,增强后不均匀强化。右肺上叶多发模糊斑片影及类结节灶,近水平裂处为著,边界欠清。左肺下叶背段小类结节灶,边界清,大小约3MM×3MM(SE9,IM252),气管及左侧支气管分支通畅。左侧腋窝见一淋巴结,大小约11MM×11MM,密度欠均匀。右侧腋窝未见肿大淋巴结。右侧胸腔少量积液;左侧胸腔未见积液。右上胸膜局部不规则增厚,可见强化。左后胸壁见一肿物(SE9,IM174),边界不清,大小约36MM×19MM,增强扫描后明显强化,肿物与左侧第6后肋分界不清,第6后肋骨皮质中断破坏。肝脏内见多发结节、肿物,边界模糊,大者大小约45MM×51MM,增强后呈环形强化。肝内另见小低密度灶,边界清,直径约2-4MM,未见强化。肝内外胆管未见异常。胆囊未见异常。门静脉未见异常。肝门区、门腔间隙、腹腔干周围见多发肿大淋巴结,大者大小约24MM×43MM。脾、胰腺大小、形态正常,密度均匀。双肾见几个囊性灶(右肾2个,左肾1个),边界清,大者直径约6MM,未见强化。右侧肾上腺稍增粗;左侧肾上腺未见正常。膀胱充盈良好,境界清楚。精囊、前列腺、直肠未见明显异常。腹主动脉旁、双侧髂血管旁、腹股沟未见肿大淋巴结。余扫描所见骨质未见明确异常。右肺门肿物,符合中央型肺癌,并右肺中叶、下叶肺不张。右肺门、纵隔、右上锁骨上区、肝门区、门腔间隙、腹腔干周围多发肿大淋巴结,考虑转移。左侧腋窝淋巴结,可疑转移。右肺上叶斑片影及类结节灶,考虑炎症可能;左肺下叶背段纤维增殖灶。右上胸膜增厚,转移待排;右侧胸腔积液。左后胸壁肿物并左侧第6后肋骨质破坏,考虑转移。肝脏多发转移瘤。右肾上腺增粗,考虑转移。双肾小囊肿。盆腔未见明确异常。</t>
+          <t>右侧肺门区见一肿物，边界不清，最大层面大小约73MM×56MM，密度不均，增强扫描后较明显强化。肿物截断右肺中叶及下叶支气管，并包绕右肺动脉。右肺中叶及下叶不张体积缩小，呈片状高密度影，内见肺血管走形，不张肺组织与肺门肿物分界不清。右肺门、隆突下、血管前、右上下气管旁、左下气管旁及右侧锁骨上区见多发肿大淋巴结，融合呈团，部分与肺门肿物分界不清，大者大小约59MM×54MM，增强后不均匀强化。右肺上叶多发模糊斑片影及类结节灶，近水平裂处为著，边界欠清。左肺下叶背段小类结节灶，边界清，大小约3MM×3MM(SE9，IM252)，气管及左侧支气管分支通畅。左侧腋窝见一淋巴结，大小约11MM×11MM，密度欠均匀。右侧腋窝未见肿大淋巴结。右侧胸腔少量积液；左侧胸腔未见积液。右上胸膜局部不规则增厚，可见强化。左后胸壁见一肿物(SE9，IM174)，边界不清，大小约36MM×19MM，增强扫描后明显强化，肿物与左侧第6后肋分界不清，第6后肋骨皮质中断破坏。肝脏内见多发结节、肿物，边界模糊，大者大小约45MM×51MM，增强后呈环形强化。肝内另见小低密度灶，边界清，直径约2-4MM，未见强化。肝内外胆管未见异常。胆囊未见异常。门静脉未见异常。肝门区、门腔间隙、腹腔干周围见多发肿大淋巴结，大者大小约24MM×43MM。脾、胰腺大小、形态正常，密度均匀。双肾见几个囊性灶(右肾2个，左肾1个)，边界清，大者直径约6MM，未见强化。右侧肾上腺稍增粗；左侧肾上腺未见正常。膀胱充盈良好，境界清楚。精囊、前列腺、直肠未见明显异常。腹主动脉旁、双侧髂血管旁、腹股沟未见肿大淋巴结。余扫描所见骨质未见明确异常。右肺门肿物，符合中央型肺癌，并右肺中叶、下叶肺不张。右肺门、纵隔、右上锁骨上区、肝门区、门腔间隙、腹腔干周围多发肿大淋巴结，考虑转移。左侧腋窝淋巴结，可疑转移。右肺上叶斑片影及类结节灶，考虑炎症可能；左肺下叶背段纤维增殖灶。右上胸膜增厚，转移待排；右侧胸腔积液。左后胸壁肿物并左侧第6后肋骨质破坏，考虑转移。肝脏多发转移瘤。右肾上腺增粗，考虑转移。双肾小囊肿。盆腔未见明确异常。</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -7829,7 +7829,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>右肺下叶后基底段可见一软组织肿块,边缘分叶,与邻近胸膜关系密切,最大截面约为4.2CM×3.5CM,增强后中度强化,双肺野内可见多发大小不一的结节影,大者长径约为1.8CM,10R、纵隔内2R、4R、4L、7区、双锁上、右侧心膈角区可见多发肿大淋巴结,大者短径约为1.2CM;右侧胸膜条形增厚伴强化,右侧胸腔可见液性密度影。T11椎体可见明显溶骨性骨质破坏影。右肺下叶癌并右侧胸膜转移、右肺门、纵隔、双锁上、右侧心膈角多发淋巴结转移、双肺多发转移、T11骨转移;右侧胸腔积液。</t>
+          <t>右肺下叶后基底段可见一软组织肿块，边缘分叶，与邻近胸膜关系密切，最大截面约为4.2CM×3.5CM，增强后中度强化，双肺野内可见多发大小不一的结节影，大者长径约为1.8CM，10R、纵隔内2R、4R、4L、7区、双锁上、右侧心膈角区可见多发肿大淋巴结，大者短径约为1.2CM；右侧胸膜条形增厚伴强化，右侧胸腔可见液性密度影。T11椎体可见明显溶骨性骨质破坏影。右肺下叶癌并右侧胸膜转移、右肺门、纵隔、双锁上、右侧心膈角多发淋巴结转移、双肺多发转移、T11骨转移；右侧胸腔积液。</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -7851,7 +7851,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>1.右肺下叶肺癌,较前片(2016-10-17)范围明显缩小;2.双肺粟粒灶,左肺上叶舌段斑片灶,请随诊;3.多发骨转移征象;双侧多发肋骨陈旧性骨折;部分椎体术后改变;请结合临床;4.全心增大,主动脉及冠状动脉钙化。双肺支气管血管束增强。右肺下叶可见条片影,边缘模糊,范围约3.4CM×1.0CM。右肺上叶前段胸膜下(41)、左肺下叶血管旁(26)、左肺下叶胸膜下(27)粟粒灶;左肺上叶舌段(35)斑片灶;纵隔见多发小淋巴结影,较大者短径约0.8CM。两胸腔未见积液征象。全心增大,主动脉、冠脉壁见条状致密影。左侧锁骨胸骨端、胸骨、多个椎体及附件骨内可见类圆形致密影;双侧部分肋骨形态不整,左侧第5后肋骨质破坏。部分椎体内见金属固定物影。</t>
+          <t>1.右肺下叶肺癌，较前片(2016-10-17)范围明显缩小；2.双肺粟粒灶，左肺上叶舌段斑片灶，请随诊；3.多发骨转移征象；双侧多发肋骨陈旧性骨折；部分椎体术后改变；请结合临床；4.全心增大，主动脉及冠状动脉钙化。双肺支气管血管束增强。右肺下叶可见条片影，边缘模糊，范围约3.4CM×1.0CM。右肺上叶前段胸膜下(41)、左肺下叶血管旁(26)、左肺下叶胸膜下(27)粟粒灶；左肺上叶舌段(35)斑片灶；纵隔见多发小淋巴结影，较大者短径约0.8CM。两胸腔未见积液征象。全心增大，主动脉、冠脉壁见条状致密影。左侧锁骨胸骨端、胸骨、多个椎体及附件骨内可见类圆形致密影；双侧部分肋骨形态不整，左侧第5后肋骨质破坏。部分椎体内见金属固定物影。</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -7873,7 +7873,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>右肺上叶尖段肿物,侵及胸壁肋骨及软组织,恶性,肺癌可能大。双肺多发结节,考虑转移。右侧胸膜增厚伴少量胸水,转移可能大。少量心包积液,追查。胸8椎体密度不均伴轻度楔形变,胸椎多个椎体密度不均,转移可能,请结合骨扫描。双侧肾上腺增粗,转移不除外。追查。右肺门及纵隔2R、4R、7组见多发肿大淋巴结,较大约19MM×10MM(IM31),双侧锁骨上淋巴结显示,短径小于10MM。右肺上叶尖段见不规则软组织密度肿块,边界欠清,强化不均,约58MM×48MM(IM15);内部见不规则钙化灶,外周见实变肺及少量积液;肿物向后上方侵犯累及右侧第2-4后肋。余双肺见散在分布多发大小不等结节,较大约9MM(IM18、40、42)。双肺下叶基底段见模糊斑片索条影。左侧胸膜欠光滑,未见胸水。心包内少量积液。胸8椎体骨质密度不均,略呈楔形;胸2、3、10椎体见不均匀骨质密度轻度增高。扫及双侧肾上腺增粗(IM61、65)。</t>
+          <t>右肺上叶尖段肿物，侵及胸壁肋骨及软组织，恶性，肺癌可能大。双肺多发结节，考虑转移。右侧胸膜增厚伴少量胸水，转移可能大。少量心包积液，追查。胸8椎体密度不均伴轻度楔形变，胸椎多个椎体密度不均，转移可能，请结合骨扫描。双侧肾上腺增粗，转移不除外。追查。右肺门及纵隔2R、4R、7组见多发肿大淋巴结，较大约19MM×10MM(IM31)，双侧锁骨上淋巴结显示，短径小于10MM。右肺上叶尖段见不规则软组织密度肿块，边界欠清，强化不均，约58MM×48MM(IM15)；内部见不规则钙化灶，外周见实变肺及少量积液；肿物向后上方侵犯累及右侧第2-4后肋。余双肺见散在分布多发大小不等结节，较大约9MM(IM18、40、42)。双肺下叶基底段见模糊斑片索条影。左侧胸膜欠光滑，未见胸水。心包内少量积液。胸8椎体骨质密度不均，略呈楔形；胸2、3、10椎体见不均匀骨质密度轻度增高。扫及双侧肾上腺增粗(IM61、65)。</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -7895,7 +7895,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>乳腺MT综合治疗后病例:两肺多发转移,胸骨、左股骨上段骨转移;纵隔及左肺门炎性淋巴结可能,请随访;肝脏囊肿及小钙化灶;甲状腺良性病变可能,请结合超声检查。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼内肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET/CT图像示甲状腺弥漫性糖代谢增强,最大SUV值为3.5,未见占位。双侧颈部、锁骨区未见明显糖代谢异常增高或肿大淋巴结;口咽、喉咽部无占位;甲状腺无肿大,未见明显占位。胸部PET/CT图像示左侧乳腺术后缺如,左胸壁呈术后改变,术区未见糖代谢异常增高灶及占位。左肺上叶下舌段近叶间裂、右肺下叶后基底段及左肺下叶外侧基底段见3枚大小不等结节影,边界清晰,伴糖代谢不同程度增高,最大且糖代谢最高者位于左肺上叶下舌段,大小约为18.7MM×11.7MM,最大SUV值为4.7;纵隔气管隆突下及左肺门各见一肿大淋巴结,大小分别为18.3MM×10.0MM和12.2MM×11.2MM,伴糖代谢轻度增高,最大SUV值分别为4.4和4.7;右肺门影无殊;双侧胸膜无增厚;双侧胸腔无积液;心脏无明显增大;双侧腋窝及右侧乳腺未见明显糖代谢增高灶及占位。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强;肠道呈线型生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整,各叶比例匀称,肝实质内见2枚囊性低密度灶,较大者位于左内叶,大小约为21.8MM×20.1MM;肝脏右后叶下角钙化灶;肝内外胆管无扩张;脾脏不大,密度均,未见明显占位;胆囊、胰、双肾、肾上腺无殊;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈,壁光滑无增厚;子宫和双附件区未见明显占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET/CT图像示胸骨局部及左侧股骨上段溶骨性骨质破坏伴糖代谢异常增高,最大SUV值分别为6.1和9.8,髓腔内见软组织密度影。腰椎侧弯;第3、5腰椎椎体内见无糖代谢增高的点状高密度影,考虑为骨岛;腰骶椎部分椎体前缘及椎小关节骨质增生,以第5腰椎/第1骶椎为著,糖代谢未见异常增高,考虑为退行性变;余所示诸骨未见明显糖代谢异常增高或骨质破坏。</t>
+          <t>乳腺MT综合治疗后病例：两肺多发转移，胸骨、左股骨上段骨转移；纵隔及左肺门炎性淋巴结可能，请随访；肝脏囊肿及小钙化灶；甲状腺良性病变可能，请结合超声检查。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET/CT图像示甲状腺弥漫性糖代谢增强，最大SUV值为3.5，未见占位。双侧颈部、锁骨区未见明显糖代谢异常增高或肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示左侧乳腺术后缺如，左胸壁呈术后改变，术区未见糖代谢异常增高灶及占位。左肺上叶下舌段近叶间裂、右肺下叶后基底段及左肺下叶外侧基底段见3枚大小不等结节影，边界清晰，伴糖代谢不同程度增高，最大且糖代谢最高者位于左肺上叶下舌段，大小约为18.7MM×11.7MM，最大SUV值为4.7；纵隔气管隆突下及左肺门各见一肿大淋巴结，大小分别为18.3MM×10.0MM和12.2MM×11.2MM，伴糖代谢轻度增高，最大SUV值分别为4.4和4.7；右肺门影无殊；双侧胸膜无增厚；双侧胸腔无积液；心脏无明显增大；双侧腋窝及右侧乳腺未见明显糖代谢增高灶及占位。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，肝实质内见2枚囊性低密度灶，较大者位于左内叶，大小约为21.8MM×20.1MM；肝脏右后叶下角钙化灶；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；胆囊、胰、双肾、肾上腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈，壁光滑无增厚；子宫和双附件区未见明显占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示胸骨局部及左侧股骨上段溶骨性骨质破坏伴糖代谢异常增高，最大SUV值分别为6.1和9.8，髓腔内见软组织密度影。腰椎侧弯；第3、5腰椎椎体内见无糖代谢增高的点状高密度影，考虑为骨岛；腰骶椎部分椎体前缘及椎小关节骨质增生，以第5腰椎/第1骶椎为著，糖代谢未见异常增高，考虑为退行性变；余所示诸骨未见明显糖代谢异常增高或骨质破坏。</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -7912,7 +7912,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>右肺癌化疗后,与2013-03-05对比:双肺多发病变,较前增大。甲状腺右叶结节性甲状腺肿,较前未见明显变化。第11胸椎血管瘤。第9胸椎体骨转移可能性大。右肺癌化疗后复查:双肺见多发结节状病灶,最大者大小约22MM×32MM,部分病灶边界欠光整,可见分叶及毛刺征,密度不均匀,增强后不均匀强化。对比前片,病灶数目大致同前,大小见增大。左肺门见一肿大淋巴结,短径约5MM,轻度强化。纵隔、右肺门未见肿大淋巴结。双胸腔未见积液;双侧胸膜未见增厚、粘连。甲状腺右叶见一椭圆形低密度灶,边界清,大小约6MM×9MM,内见斑点状致密灶,增强扫描时未见强化。第11胸椎见一类圆形稍低密度病变,大小约14MM×13MM,其内呈“栅栏状”改变。第9胸椎体右份见范围约12MM×13MM的密度增高影,密度不均匀。其余胸腰椎、胸壁骨未见明确破坏征象。</t>
+          <t>右肺癌化疗后，与2013-03-05对比：双肺多发病变，较前增大。甲状腺右叶结节性甲状腺肿，较前未见明显变化。第11胸椎血管瘤。第9胸椎体骨转移可能性大。右肺癌化疗后复查：双肺见多发结节状病灶，最大者大小约22MM×32MM，部分病灶边界欠光整，可见分叶及毛刺征，密度不均匀，增强后不均匀强化。对比前片，病灶数目大致同前，大小见增大。左肺门见一肿大淋巴结，短径约5MM，轻度强化。纵隔、右肺门未见肿大淋巴结。双胸腔未见积液；双侧胸膜未见增厚、粘连。甲状腺右叶见一椭圆形低密度灶，边界清，大小约6MM×9MM，内见斑点状致密灶，增强扫描时未见强化。第11胸椎见一类圆形稍低密度病变，大小约14MM×13MM，其内呈“栅栏状”改变。第9胸椎体右份见范围约12MM×13MM的密度增高影，密度不均匀。其余胸腰椎、胸壁骨未见明确破坏征象。</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -7929,7 +7929,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>全身PET/CT图像示:右肺MT,右锁骨上、左上气管旁、纵隔及右肺门、后腹膜淋巴结转移;右侧胸腔积液;右侧额叶无明显糖代谢增高的稍高密灶,请结合MRI检查;右肾无糖代谢增高的低密度灶,考虑良性病变;右侧第8前肋骨皮质稍厚无糖代谢增高,请随访。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET/CT图像示右侧额叶见直径约6MM稍高密度灶,周围未见明显低密度水肿区,早期及1小时延迟相均未见明显糖代谢异常增高。双侧基底节、丘脑、小脑放射性分布对称,未见明显糖代谢异常。各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶、鼻咽PET/CT图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶及占位。颈部PET/CT图像示右侧锁骨上及左上气管旁见数枚糖代谢增高的淋巴结,最大者位于右锁骨上,约14.0MM×13.4MM,最大SUV值约3.3。甲状腺未见明显糖代谢异常增高灶及占位。胸部PET/CT图像示右肺上叶及中叶近肺门见边界不清的软组织密度影,伴糖代谢异常增高,最大SUV值约5.1。纵隔及右肺门见多发糖代谢增高的淋巴结,最大者约25.2MM×16.5MM,最大SUV值约4.3。右侧胸腔积液。胸壁、腋窝未见明显糖代谢异常增高灶。心脏不大;双侧腋窝无明显肿大淋巴结。腹部PET/CT图像示后腹膜见数枚伴轻度糖代谢的淋巴结,最大者约12.7MM×9.5MM,最大SUV值约2.6。胃壁均匀性轻度生理性糖代谢增强;肠道呈线型生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整,各叶比例匀称,实质内未见异常占位;肝内外胆管无扩张;脾脏不大,密度均,未见异常占位;右肾见直径约11.7MM低密度灶;胆囊、胰、左肾、肾上腺无殊;腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈,壁光滑无增厚;双侧精囊腺形态可;双侧膀胱精囊三角对称;前列腺不大,密度均;盆腔内未见占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET/CT图像示右侧第8前肋骨皮质略增厚,局部未见明显糖代谢异常增高。余所示诸骨未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见异常。</t>
+          <t>全身PET/CT图像示：右肺MT，右锁骨上、左上气管旁、纵隔及右肺门、后腹膜淋巴结转移；右侧胸腔积液；右侧额叶无明显糖代谢增高的稍高密灶，请结合MRI检查；右肾无糖代谢增高的低密度灶，考虑良性病变；右侧第8前肋骨皮质稍厚无糖代谢增高，请随访。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET/CT图像示右侧额叶见直径约6MM稍高密度灶，周围未见明显低密度水肿区，早期及1小时延迟相均未见明显糖代谢异常增高。双侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常。各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶、鼻咽PET/CT图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶及占位。颈部PET/CT图像示右侧锁骨上及左上气管旁见数枚糖代谢增高的淋巴结，最大者位于右锁骨上，约14.0MM×13.4MM，最大SUV值约3.3。甲状腺未见明显糖代谢异常增高灶及占位。胸部PET/CT图像示右肺上叶及中叶近肺门见边界不清的软组织密度影，伴糖代谢异常增高，最大SUV值约5.1。纵隔及右肺门见多发糖代谢增高的淋巴结，最大者约25.2MM×16.5MM，最大SUV值约4.3。右侧胸腔积液。胸壁、腋窝未见明显糖代谢异常增高灶。心脏不大；双侧腋窝无明显肿大淋巴结。腹部PET/CT图像示后腹膜见数枚伴轻度糖代谢的淋巴结，最大者约12.7MM×9.5MM，最大SUV值约2.6。胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内未见异常占位；肝内外胆管无扩张；脾脏不大，密度均，未见异常占位；右肾见直径约11.7MM低密度灶；胆囊、胰、左肾、肾上腺无殊；腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈，壁光滑无增厚；双侧精囊腺形态可；双侧膀胱精囊三角对称；前列腺不大，密度均；盆腔内未见占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示右侧第8前肋骨皮质略增厚，局部未见明显糖代谢异常增高。余所示诸骨未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见异常。</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -7946,7 +7946,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>右肺癌术后右膈肌转移瘤术后化疗后及靶向治疗复查,对比2016-08-26片:右肺下叶术后缺失,局部未见明确复发。右侧胸膜增厚、粘连,同前相仿。左侧锁骨上窝淋巴结较前变化不大。肝囊肿。双肾囊肿。肝门区、门腔间隙、腹膜后淋巴结,,考虑转移性淋巴结,部分较前缩小。右侧结肠旁沟结节状软组织灶,考虑转移可能性大。右肺癌术后右膈肌转移瘤术后化疗后及靶向治疗复查,对比2016-08-26片:右肺下叶术后缺失,术区未见明确异常密度灶及强化影。右残肺充气良好,余双肺野未见明显病变;气管及残余支气管分支通畅。左侧锁骨上窝见数个小淋巴结,较大者短径约6MM,边界清晰,增强扫描轻度强化,同前相仿。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液,右侧胸膜增厚、粘连,同前相仿。肝脏形态、各叶比例未见异常,肝S6、S7见囊性灶,较大者约12MM×11MM,余肝内未见明确异常密度影。肝内胆管正常,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。双肾上腺未见异常。双肾见小囊性低密度灶,大小约7MM×6MM,边清,密度均匀,增强扫描未见强化。肝门区、门静脉-腔静脉间隙、腹主动脉与下腔静脉之间、左肾静脉后方见多发肿大淋巴结,部分相互融合,较大者约为26MM×0MM,边欠清,增强扫描可见不均匀强化,其内可见不规则低密度区,较前缩小。右侧结肠旁沟见结节状软组织灶,大小约9MM×10MM。肠系膜欠清楚,见较多索条影。右侧部分肋骨呈术后改变;余扫描范围内骨质未见明确骨质破坏。</t>
+          <t>右肺癌术后右膈肌转移瘤术后化疗后及靶向治疗复查，对比2016-08-26片：右肺下叶术后缺失，局部未见明确复发。右侧胸膜增厚、粘连，同前相仿。左侧锁骨上窝淋巴结较前变化不大。肝囊肿。双肾囊肿。肝门区、门腔间隙、腹膜后淋巴结，，考虑转移性淋巴结，部分较前缩小。右侧结肠旁沟结节状软组织灶，考虑转移可能性大。右肺癌术后右膈肌转移瘤术后化疗后及靶向治疗复查，对比2016-08-26片：右肺下叶术后缺失，术区未见明确异常密度灶及强化影。右残肺充气良好，余双肺野未见明显病变；气管及残余支气管分支通畅。左侧锁骨上窝见数个小淋巴结，较大者短径约6MM，边界清晰，增强扫描轻度强化，同前相仿。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液，右侧胸膜增厚、粘连，同前相仿。肝脏形态、各叶比例未见异常，肝S6、S7见囊性灶，较大者约12MM×11MM，余肝内未见明确异常密度影。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾上腺未见异常。双肾见小囊性低密度灶，大小约7MM×6MM，边清，密度均匀，增强扫描未见强化。肝门区、门静脉-腔静脉间隙、腹主动脉与下腔静脉之间、左肾静脉后方见多发肿大淋巴结，部分相互融合，较大者约为26MM×0MM，边欠清，增强扫描可见不均匀强化，其内可见不规则低密度区，较前缩小。右侧结肠旁沟见结节状软组织灶，大小约9MM×10MM。肠系膜欠清楚，见较多索条影。右侧部分肋骨呈术后改变；余扫描范围内骨质未见明确骨质破坏。</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -7963,7 +7963,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>1.左肺下叶肺癌,较前(2017-1-18)好转;双肺、左侧胸膜转移,变化不著;左侧胸膜增厚,变化不著;骨转移,较前变化不著;右侧第6后肋骨质密度增高,变化不著2.脂肪肝;肝内小结节,变化不著左肺下叶后基底段示一不规则肿块影,边缘分叶状,周围可见粗长毛刺,局部与纵隔胸膜关系密切,可见条索影同肺门相连,外周肺野可见纤维条索状密度增高影,呈明显不均匀强化,大小约2.0CM×1.3CM,左侧背侧胸膜可见轻度增厚;双肺野及左侧胸膜区可见多个结节灶,大者边缘毛糙,位于右肺下叶及肺门区,可见强化,直径约1.3CM。右肺门示淋巴结,直径约为1.0CM。肝脏密度普遍性减低,未见异常密度灶。肝左叶见一高密度结节灶,边缘较清晰。胆胰脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。多个胸腰椎体、右侧肱骨见成骨性骨改变。右侧第6后肋局部骨质密度增高。</t>
+          <t>1.左肺下叶肺癌，较前(2017-1-18)好转；双肺、左侧胸膜转移，变化不著；左侧胸膜增厚，变化不著；骨转移，较前变化不著；右侧第6后肋骨质密度增高，变化不著2.脂肪肝；肝内小结节，变化不著左肺下叶后基底段示一不规则肿块影，边缘分叶状，周围可见粗长毛刺，局部与纵隔胸膜关系密切，可见条索影同肺门相连，外周肺野可见纤维条索状密度增高影，呈明显不均匀强化，大小约2.0CM×1.3CM，左侧背侧胸膜可见轻度增厚；双肺野及左侧胸膜区可见多个结节灶，大者边缘毛糙，位于右肺下叶及肺门区，可见强化，直径约1.3CM。右肺门示淋巴结，直径约为1.0CM。肝脏密度普遍性减低，未见异常密度灶。肝左叶见一高密度结节灶，边缘较清晰。胆胰脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。多个胸腰椎体、右侧肱骨见成骨性骨改变。右侧第6后肋局部骨质密度增高。</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -7985,7 +7985,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>右乳癌化疗后复查,对比2017-11-26PET/CT:右侧乳腺上象限见多个不规则肿块、结节,部分互相融合,较大者大小约35MM×21MM,病灶累及右侧乳头及乳晕处皮肤,乳腺腺体后脂肪间隙模糊,增强扫描不均匀明显强化,较前缩小。左乳腺实质内未见异常密度及异常强化灶。右侧腋窝及右侧内乳区见多发肿大淋巴结,边界欠清,最大者约8MM×7MM,增强扫描明显强化,较前明显缩小。双侧锁骨上区及左侧腋窝未见明显肿大淋巴结。双肺纹理清晰,右肺中叶内侧段及左肺上叶下舌段见少许斑片影、条索影,边界不清,余肺野内未见明显实质性病变。气管及支气管分支通畅。余纵膈、双肺门未见肿大淋巴结。双侧胸腔未见积液。双侧胸膜稍增厚、粘连,未见强化。肝脏大小、形态未见异常,各叶比例在正常范围内。肝内见多发稍低密度结节、肿块,边界不清,大者位于肝S7/8,最大层面范围约36MM×28MM,密度不均匀,内见坏死,邻近肝包膜凹陷,增强扫描轻度强化,较前明显缩小。肝内外胆管未见扩张,其内未见结石影,胆囊内见稍高密度结石,较大者直径约7MM,壁不厚。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大,密度均匀,脾门见一结节影,长径约11MM,密度及强化方式与脾相近。右肾见一小囊性灶,边界清,较大者长径约6MM,未见强化。胰腺、左肾及双肾上腺未见明确病变。胃左动脉旁、腹主动脉旁见多发淋巴结,边界欠清,较大者大小约11MM×8MM,明显强化,胃左动脉旁淋巴结稍增大,余部分淋巴结较前稍缩小。甲状腺双叶及峡部形态正常,右叶中部见一低密度结节,边界清,直径约4MM,轻度强化。喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。双侧颌下腺、双侧腮腺大小、形态正常,密度均匀。双颈II~IV区见数个淋巴结,大者约为8MM×6MM,均匀明显强化,较前相仿。左侧第2肋、右侧第4肋、T6、7、12、L2椎体及部分附件见不规则骨质密度减低,边界不清,右侧第4肋腋段骨皮质不连续,周围见骨痂形成。右侧肱骨头、L4左侧附件见类结节状高密度影。右乳癌化疗后复查,对比2017-11-26PET/CT:右乳多发肿块、结节,符合乳腺癌治疗后改变,较前缩小。右腋窝及右内乳区肿大淋巴结,考虑转移,较前明显缩小。肝内多发稍低密度结节、肿块,考虑转移瘤,较前明显缩小。胃左动脉旁、腹主动脉旁淋巴结,部分较前稍增大,考虑转移可能性大。全身多发骨质破坏,考虑转移瘤。右侧第4肋腋段病理性骨折可能。胆囊结石。右肾囊肿。副脾。右肺中叶及左肺上叶斑片影、条索影,考虑慢性炎症可能。双侧胸膜稍增厚。甲状腺右叶结节,考虑结节性甲状腺肿。双颈II~IV区淋巴结同前,考虑反应性淋巴结。</t>
+          <t>右乳癌化疗后复查，对比2017-11-26PET/CT：右侧乳腺上象限见多个不规则肿块、结节，部分互相融合，较大者大小约35MM×21MM，病灶累及右侧乳头及乳晕处皮肤，乳腺腺体后脂肪间隙模糊，增强扫描不均匀明显强化，较前缩小。左乳腺实质内未见异常密度及异常强化灶。右侧腋窝及右侧内乳区见多发肿大淋巴结，边界欠清，最大者约8MM×7MM，增强扫描明显强化，较前明显缩小。双侧锁骨上区及左侧腋窝未见明显肿大淋巴结。双肺纹理清晰，右肺中叶内侧段及左肺上叶下舌段见少许斑片影、条索影，边界不清，余肺野内未见明显实质性病变。气管及支气管分支通畅。余纵膈、双肺门未见肿大淋巴结。双侧胸腔未见积液。双侧胸膜稍增厚、粘连，未见强化。肝脏大小、形态未见异常，各叶比例在正常范围内。肝内见多发稍低密度结节、肿块，边界不清，大者位于肝S7/8，最大层面范围约36MM×28MM，密度不均匀，内见坏死，邻近肝包膜凹陷，增强扫描轻度强化，较前明显缩小。肝内外胆管未见扩张，其内未见结石影，胆囊内见稍高密度结石，较大者直径约7MM，壁不厚。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀，脾门见一结节影，长径约11MM，密度及强化方式与脾相近。右肾见一小囊性灶，边界清，较大者长径约6MM，未见强化。胰腺、左肾及双肾上腺未见明确病变。胃左动脉旁、腹主动脉旁见多发淋巴结，边界欠清，较大者大小约11MM×8MM，明显强化，胃左动脉旁淋巴结稍增大，余部分淋巴结较前稍缩小。甲状腺双叶及峡部形态正常，右叶中部见一低密度结节，边界清，直径约4MM，轻度强化。喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。双侧颌下腺、双侧腮腺大小、形态正常，密度均匀。双颈II~IV区见数个淋巴结，大者约为8MM×6MM，均匀明显强化，较前相仿。左侧第2肋、右侧第4肋、T6、7、12、L2椎体及部分附件见不规则骨质密度减低，边界不清，右侧第4肋腋段骨皮质不连续，周围见骨痂形成。右侧肱骨头、L4左侧附件见类结节状高密度影。右乳癌化疗后复查，对比2017-11-26PET/CT：右乳多发肿块、结节，符合乳腺癌治疗后改变，较前缩小。右腋窝及右内乳区肿大淋巴结，考虑转移，较前明显缩小。肝内多发稍低密度结节、肿块，考虑转移瘤，较前明显缩小。胃左动脉旁、腹主动脉旁淋巴结，部分较前稍增大，考虑转移可能性大。全身多发骨质破坏，考虑转移瘤。右侧第4肋腋段病理性骨折可能。胆囊结石。右肾囊肿。副脾。右肺中叶及左肺上叶斑片影、条索影，考虑慢性炎症可能。双侧胸膜稍增厚。甲状腺右叶结节，考虑结节性甲状腺肿。双颈II~IV区淋巴结同前，考虑反应性淋巴结。</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -8007,7 +8007,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>乳腺癌治疗后复查,对比2016-3-29片:左乳癌术后,左侧前胸壁局部皮肤结节状、条片状增厚,考虑复发,较前增大。左颈VI区新见淋巴结肿大,考虑转移。右腋窝部分淋巴结较前增大,考虑转移可能性大。双锁上、纵隔小淋巴结,较前变化不大。肝S4小囊肿。左肾囊肿。双侧锁骨头、胸骨及多发椎体骨质破坏,考虑转移瘤,范围大致同前。右侧第6肋腋段骨质异常,考虑陈旧性骨折可能性大,大致同前。乳腺癌治疗后复查,对比2016-3-29片:左侧乳腺术后缺失,左侧前胸壁局部皮肤呈结节样、条片状增厚,最大约13MM×7MM,较前增大。左侧腋窝见少许条索影,未见肿大淋巴结。右侧乳腺未见肿物。右侧腋窝见数个淋巴结,最大约14MM×10MM,边界尚清,密度不均匀,增强后不均匀轻中度强化,部分较前增大。口咽、喉咽未见异常。双侧声带未见增厚。双腮腺、颌下腺未见明显异常。甲状腺峡部及双叶未见明显异常。左颈VI区见一肿大淋巴结,大小约10MM×13MM,边界尚清,密度不均匀,增强后不均匀轻度强化。左上肺近前胸壁处见散在斑片灶,边界欠清,较前相仿,余双肺未见实质性病变。气管及支气管分支通畅,未见明显软组织肿物或受压变窄。双锁骨上窝、右侧气管食管沟、主动脉旁、双下气管旁、隆突下见数个小淋巴结,较大者短径约7MM,增强扫描均匀强化,较前变化不大。双侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态、各叶比例未见异常,轮廓欠光整;肝S4见一小囊性病变,直径约4MM,增强扫描未见强化,大致同前。肝内胆管正常,其内未见结石影,胆囊不大,内未见结石,胆总管未见扩张,其内未见结石影。肝门区、门静脉所见正常。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。左肾见类圆形囊性灶,直径约7MM,边界清楚,未见强化。右肾、双肾上腺未见异常。腹主动脉旁未见肿大淋巴结。胸骨、双侧锁骨头见不规则骨质破坏,周围见少许增多软组织,增强扫描轻度强化,范围大致同前。扫描范围内多个椎体内见类圆形、结节样骨质密度增高灶,边界模糊,密度欠均匀,与前片对比,病灶范围大致同前。右侧第6肋腋段见结节状骨质密度增高影,大致同前。</t>
+          <t>乳腺癌治疗后复查，对比2016-3-29片：左乳癌术后，左侧前胸壁局部皮肤结节状、条片状增厚，考虑复发，较前增大。左颈VI区新见淋巴结肿大，考虑转移。右腋窝部分淋巴结较前增大，考虑转移可能性大。双锁上、纵隔小淋巴结，较前变化不大。肝S4小囊肿。左肾囊肿。双侧锁骨头、胸骨及多发椎体骨质破坏，考虑转移瘤，范围大致同前。右侧第6肋腋段骨质异常，考虑陈旧性骨折可能性大，大致同前。乳腺癌治疗后复查，对比2016-3-29片：左侧乳腺术后缺失，左侧前胸壁局部皮肤呈结节样、条片状增厚，最大约13MM×7MM，较前增大。左侧腋窝见少许条索影，未见肿大淋巴结。右侧乳腺未见肿物。右侧腋窝见数个淋巴结，最大约14MM×10MM，边界尚清，密度不均匀，增强后不均匀轻中度强化，部分较前增大。口咽、喉咽未见异常。双侧声带未见增厚。双腮腺、颌下腺未见明显异常。甲状腺峡部及双叶未见明显异常。左颈VI区见一肿大淋巴结，大小约10MM×13MM，边界尚清，密度不均匀，增强后不均匀轻度强化。左上肺近前胸壁处见散在斑片灶，边界欠清，较前相仿，余双肺未见实质性病变。气管及支气管分支通畅，未见明显软组织肿物或受压变窄。双锁骨上窝、右侧气管食管沟、主动脉旁、双下气管旁、隆突下见数个小淋巴结，较大者短径约7MM，增强扫描均匀强化，较前变化不大。双侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态、各叶比例未见异常，轮廓欠光整；肝S4见一小囊性病变，直径约4MM，增强扫描未见强化，大致同前。肝内胆管正常，其内未见结石影，胆囊不大，内未见结石，胆总管未见扩张，其内未见结石影。肝门区、门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。左肾见类圆形囊性灶，直径约7MM，边界清楚，未见强化。右肾、双肾上腺未见异常。腹主动脉旁未见肿大淋巴结。胸骨、双侧锁骨头见不规则骨质破坏，周围见少许增多软组织，增强扫描轻度强化，范围大致同前。扫描范围内多个椎体内见类圆形、结节样骨质密度增高灶，边界模糊，密度欠均匀，与前片对比，病灶范围大致同前。右侧第6肋腋段见结节状骨质密度增高影，大致同前。</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -8024,7 +8024,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>左下肺MT综合治疗后,与2012-4-12本院PET/CT图像相比,两肺多发转移,肝左叶转移为新增病灶;全身骨骼多处转移,部分为新增病灶;左锁骨区淋巴结转移较前增多,糖代谢程度增高;右锁骨区淋巴结转移灶大小相仿,糖代谢程度较前略减低;内乳、纵隔转移性淋巴结较前缩小,糖代谢程度减低;后腹膜淋巴结转移,病灶较前增多,糖代谢略减低;余同前。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像,并与2012.04.12本院PET/CT图像比较。脑部PET/CT图像示脑内多发无糖代谢增高的小低密度灶,较前片相仿;余脑皮质及双侧基底节、丘脑、小脑放射性分布对称,未见明显糖代谢异常;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部及鼻咽部PET/CT图像示眶内及鼻咽部结构及其糖代谢未见明显异常。颈部PET/CT图像示双侧锁骨区见多发糖代谢异常增高的肿大淋巴结,左侧最大者大小为17.5MM×10.5MM,最大SUV值5.06,右侧最大者大小为19.5MM×14.8MM,最大SUV值3.35;较前片左侧锁骨区肿大淋巴结增大,糖代谢程度增高,右侧锁骨区肿大淋巴结大小较前相仿,糖代谢略减低;余双侧颈部、甲状腺等均未见明显糖代谢异常增高灶及占位性病变。胸部PET/CT图像示左下肺MT术后,右肺上叶尖段和前段见糖代谢异常增高的不规则结节影,边缘模糊,最大SUV值6.49,延迟1.5小时后最大SUV值7.81,滞留指数为20.3%;两肺另见多发早期及延迟1.5小时相均无明显糖代谢异常增高的微小结节影,最大者直径约7.5MM,纵隔、右侧内乳、双侧肺门见糖代谢增高淋巴结,最大者约14.8MM×13.5MM,最大SUV值4.71,位于右侧肺门;纵隔及右侧内乳多发糖代谢异常增高的肿大淋巴结较前缩小,糖代谢减低;两侧肺门肿大淋巴结为新增病灶;双侧胸腔无积液;心脏不大。腹部PET/CT图像示肝左叶见糖代谢异常增高的低密度影,大小约19.3MM×14.5MM,最大SUV值6.95,较前片为新增病灶;腹主动脉旁见多发糖代谢异常增高的肿大淋巴结,最大者大小为18.5MM×13.2MM,最大SUV值为10.09,较前片增大、增多,糖代谢略减低;肝内外胆管无扩张;双肾多发无明显糖代谢的低密度灶,边界清楚,最大者大小为26.8MM×23.5MM,位于左肾,较前相仿;胃壁均匀性轻度生理性糖代谢增强;肠道呈线型生理性糖代谢增强;胆囊、胰、脾、双肾上腺无殊;腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈,壁光滑无增厚;双侧精囊腺形态可;双侧膀胱精囊三角对称;前列腺不大,密度均;盆腔内未见占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET/CT图像见右侧肱骨上段、双侧侧髂骨、右侧第8后肋、脊柱多处见糖代谢异常增高,骨质密度不规则增高,最大SUV值分别为10.22,位于左侧髂骨,较前片病灶增多,糖代谢程度增高;余处未见明显糖代谢异常增高及骨质破坏;部分脊柱椎体边缘及椎小关节骨质增生。</t>
+          <t>左下肺MT综合治疗后，与2012-4-12本院PET/CT图像相比，两肺多发转移，肝左叶转移为新增病灶；全身骨骼多处转移，部分为新增病灶；左锁骨区淋巴结转移较前增多，糖代谢程度增高；右锁骨区淋巴结转移灶大小相仿，糖代谢程度较前略减低；内乳、纵隔转移性淋巴结较前缩小，糖代谢程度减低；后腹膜淋巴结转移，病灶较前增多，糖代谢略减低；余同前。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像，并与2012.04.12本院PET/CT图像比较。脑部PET/CT图像示脑内多发无糖代谢增高的小低密度灶，较前片相仿；余脑皮质及双侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部及鼻咽部PET/CT图像示眶内及鼻咽部结构及其糖代谢未见明显异常。颈部PET/CT图像示双侧锁骨区见多发糖代谢异常增高的肿大淋巴结，左侧最大者大小为17.5MM×10.5MM，最大SUV值5.06，右侧最大者大小为19.5MM×14.8MM，最大SUV值3.35；较前片左侧锁骨区肿大淋巴结增大，糖代谢程度增高，右侧锁骨区肿大淋巴结大小较前相仿，糖代谢略减低；余双侧颈部、甲状腺等均未见明显糖代谢异常增高灶及占位性病变。胸部PET/CT图像示左下肺MT术后，右肺上叶尖段和前段见糖代谢异常增高的不规则结节影，边缘模糊，最大SUV值6.49，延迟1.5小时后最大SUV值7.81，滞留指数为20.3%；两肺另见多发早期及延迟1.5小时相均无明显糖代谢异常增高的微小结节影，最大者直径约7.5MM，纵隔、右侧内乳、双侧肺门见糖代谢增高淋巴结，最大者约14.8MM×13.5MM，最大SUV值4.71，位于右侧肺门；纵隔及右侧内乳多发糖代谢异常增高的肿大淋巴结较前缩小，糖代谢减低；两侧肺门肿大淋巴结为新增病灶；双侧胸腔无积液；心脏不大。腹部PET/CT图像示肝左叶见糖代谢异常增高的低密度影，大小约19.3MM×14.5MM，最大SUV值6.95，较前片为新增病灶；腹主动脉旁见多发糖代谢异常增高的肿大淋巴结，最大者大小为18.5MM×13.2MM，最大SUV值为10.09，较前片增大、增多，糖代谢略减低；肝内外胆管无扩张；双肾多发无明显糖代谢的低密度灶，边界清楚，最大者大小为26.8MM×23.5MM，位于左肾，较前相仿；胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；胆囊、胰、脾、双肾上腺无殊；腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈，壁光滑无增厚；双侧精囊腺形态可；双侧膀胱精囊三角对称；前列腺不大，密度均；盆腔内未见占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像见右侧肱骨上段、双侧侧髂骨、右侧第8后肋、脊柱多处见糖代谢异常增高，骨质密度不规则增高，最大SUV值分别为10.22，位于左侧髂骨，较前片病灶增多，糖代谢程度增高；余处未见明显糖代谢异常增高及骨质破坏；部分脊柱椎体边缘及椎小关节骨质增生。</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -8041,7 +8041,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>1.乙状结肠癌,由肠系膜下动脉供血;2.肝内小囊肿,静脉期肝内轻度强化灶,转移待除外,请结合临床,必要时详查;3.平腰2/3椎间隙水平腹主动脉局限性增宽,腹主动脉瘤可能性大;4.双肾囊肿。乙状结肠肠壁增厚,管腔狭窄,周围脂肪间隙尚清,增强后病变明显强化,病变周围可见增多迂曲动脉,由肠系膜下动脉供血,近端结肠管腔未见扩张。余腹腔肠管未见异常强化。肝脏大小形态正常,肝脏左内叶可见小圆形低密度影,边界清,增强各期未见强化。增强后静脉肝脏实质可见多个轻度强化灶,直径约0.5CM。余脾脏、胰腺形态大小正常,内未见异常强化影。两肾实质内可见小圆形低密度影,边界清,增强各期未见强化。胆囊不大,其内未见异常密度影。膀胱充盈良好,其内未见异常密度影,双侧输尿管不扩张。腹膜后未见异常增大的淋巴结影。全腹平扫、增强及三维重建示腹主动脉及双髂总动脉多发混合斑块,走形迂曲,平腰2/3椎间隙腹主动脉增宽,直径约2.9CM。肠系膜上下动脉、腹腔干、双肾动脉形态走形未见异常。</t>
+          <t>1.乙状结肠癌，由肠系膜下动脉供血；2.肝内小囊肿，静脉期肝内轻度强化灶，转移待除外，请结合临床，必要时详查；3.平腰2/3椎间隙水平腹主动脉局限性增宽，腹主动脉瘤可能性大；4.双肾囊肿。乙状结肠肠壁增厚，管腔狭窄，周围脂肪间隙尚清，增强后病变明显强化，病变周围可见增多迂曲动脉，由肠系膜下动脉供血，近端结肠管腔未见扩张。余腹腔肠管未见异常强化。肝脏大小形态正常，肝脏左内叶可见小圆形低密度影，边界清，增强各期未见强化。增强后静脉肝脏实质可见多个轻度强化灶，直径约0.5CM。余脾脏、胰腺形态大小正常，内未见异常强化影。两肾实质内可见小圆形低密度影，边界清，增强各期未见强化。胆囊不大，其内未见异常密度影。膀胱充盈良好，其内未见异常密度影，双侧输尿管不扩张。腹膜后未见异常增大的淋巴结影。全腹平扫、增强及三维重建示腹主动脉及双髂总动脉多发混合斑块，走形迂曲，平腰2/3椎间隙腹主动脉增宽，直径约2.9CM。肠系膜上下动脉、腹腔干、双肾动脉形态走形未见异常。</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -8058,7 +8058,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>1.结合临床,右肺癌侵及胸膜治疗后,较前2016-7-6略缩小;右侧锁骨上、右肺门及纵隔淋巴结转移治疗后,部分略缩小,部分变化不著;骨转移,较前成骨略增多;左肺小结节灶,考虑转移,变化不著。2.左肺门及膈上稍大淋巴结,变化不著。3.右肺类结节灶,变化不著;左肺含气囊肿;考虑左肺少许炎症、纤维灶,变化不著。4.甲状腺低密度灶。5.考虑肝囊肿、右肾囊肿。6.肝内异常强化灶,变化不著。7.主胰管及部分肝内胆管轻度扩张。右肺中叶外侧段胸膜下示不规则软组织密度影,约1.7CM×2.1CM,增强呈不均质较明显强化,边缘分叶、毛糙,与邻近胸膜分界不清,以叶间胸膜为著,局部胸膜略内陷。右肺胸膜下示小类结节灶。左肺下叶示小结节灶,增强可见强化,边界较清。另左肺上叶示小泡状低密度区,边界较清,舌段示片状影。右侧锁骨上、双肺门、纵隔及膈上前组示多发增大淋巴结,大者短径约0.7CM。甲状腺右叶内示斑片状低密度灶。肝及右肾示囊性密度灶。另动脉期肝内示类结节状明显强化灶,其余各期显示不清。主胰管及部分肝内胆管略扩张。双侧肾上腺饱满。腹腔腹膜后未见肿大淋巴结。部分椎骨示骨质破坏。</t>
+          <t>1.结合临床，右肺癌侵及胸膜治疗后，较前2016-7-6略缩小；右侧锁骨上、右肺门及纵隔淋巴结转移治疗后，部分略缩小，部分变化不著；骨转移，较前成骨略增多；左肺小结节灶，考虑转移，变化不著。2.左肺门及膈上稍大淋巴结，变化不著。3.右肺类结节灶，变化不著；左肺含气囊肿；考虑左肺少许炎症、纤维灶，变化不著。4.甲状腺低密度灶。5.考虑肝囊肿、右肾囊肿。6.肝内异常强化灶，变化不著。7.主胰管及部分肝内胆管轻度扩张。右肺中叶外侧段胸膜下示不规则软组织密度影，约1.7CM×2.1CM，增强呈不均质较明显强化，边缘分叶、毛糙，与邻近胸膜分界不清，以叶间胸膜为著，局部胸膜略内陷。右肺胸膜下示小类结节灶。左肺下叶示小结节灶，增强可见强化，边界较清。另左肺上叶示小泡状低密度区，边界较清，舌段示片状影。右侧锁骨上、双肺门、纵隔及膈上前组示多发增大淋巴结，大者短径约0.7CM。甲状腺右叶内示斑片状低密度灶。肝及右肾示囊性密度灶。另动脉期肝内示类结节状明显强化灶，其余各期显示不清。主胰管及部分肝内胆管略扩张。双侧肾上腺饱满。腹腔腹膜后未见肿大淋巴结。部分椎骨示骨质破坏。</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -8080,7 +8080,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>乳腺癌术后复发综合治疗后复查:双侧乳腺缺失,双侧前胸壁局部未见明显肿瘤复发征。右肺尖斑片状影,考虑放射性炎症,大致同前。左肺上叶舌段少许炎症。右肺上叶、中叶胸膜下索条及斑片影,考虑纤维增殖灶,较前未见明显变化。主动脉旁、左侧锁骨上窝小淋巴结,较前无明显变化。肝S4小囊肿。肝内胆管结石。甲状腺内高密度灶,考虑良性病变,结节性甲状腺肿合并钙化?建议复查。右侧腮腺小结节,考虑良性病变可能性大。多发骨转移瘤,较前部分稍增大、部分较前致密。T10右旁软组织结节影,考虑转移瘤可能性大,较前未见明显变化。乳腺癌术后复发综合治疗后复查,与2016-11-19片对比:双侧乳腺缺失,双侧前胸壁皮肤无明显增厚,皮下脂肪间隙稍模糊。双肺纹理清晰,右肺尖可见斑片状密影,边界欠清,内可见充气支气管影,较前相仿;右肺上叶及中叶近胸膜处可见斑片状、索条状密影,边界欠清,较前未见明显变化。左肺上叶舌段见少许斑片模糊影。气管及支气管分支通畅。左侧锁骨上窝、主动脉旁见小淋巴结,大者短径为7MM,边界清晰,大致同前。双侧胸腔内未见积液。胸膜未见增厚粘连。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度不均匀。肝S4见一低密度灶,边界尚清,大小约5MM,增强扫描强化不明显。肝S4、S5包膜下见点状高密度灶,大小约7MM。胆囊大小正常,其内未见结石影;肝内胆管、胆总管未见扩张,其内未见结石影。肝门区正常。门静脉未见异常。脾、胰腺、双肾见及双肾上腺形态及密度未见明显异常。腹主动脉旁未见肿大淋巴结。甲状腺双叶见数个高密度灶,大者约8MM×6MM,边界清,未见强化。喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。右侧腮腺见一结节,直径约5MM,边界清楚,内见钙化。双侧颌下腺、左侧腮腺大小形态正常,密度均匀。双颈未见明显肿大淋巴结。所示颅骨、颈椎、左侧锁骨、双侧肱骨头、双侧肩胛骨、双侧部分肋骨、胸骨、多发胸椎、腰椎及附件见骨质破坏,较前部分稍增大、部分较前致密。T10椎体右旁见软组织结节,大小为12MM×20MM,边界清晰,密度尚均匀,增强扫描明显强化,较前相仿。</t>
+          <t>乳腺癌术后复发综合治疗后复查：双侧乳腺缺失，双侧前胸壁局部未见明显肿瘤复发征。右肺尖斑片状影，考虑放射性炎症，大致同前。左肺上叶舌段少许炎症。右肺上叶、中叶胸膜下索条及斑片影，考虑纤维增殖灶，较前未见明显变化。主动脉旁、左侧锁骨上窝小淋巴结，较前无明显变化。肝S4小囊肿。肝内胆管结石。甲状腺内高密度灶，考虑良性病变，结节性甲状腺肿合并钙化?建议复查。右侧腮腺小结节，考虑良性病变可能性大。多发骨转移瘤，较前部分稍增大、部分较前致密。T10右旁软组织结节影，考虑转移瘤可能性大，较前未见明显变化。乳腺癌术后复发综合治疗后复查，与2016-11-19片对比：双侧乳腺缺失，双侧前胸壁皮肤无明显增厚，皮下脂肪间隙稍模糊。双肺纹理清晰，右肺尖可见斑片状密影，边界欠清，内可见充气支气管影，较前相仿；右肺上叶及中叶近胸膜处可见斑片状、索条状密影，边界欠清，较前未见明显变化。左肺上叶舌段见少许斑片模糊影。气管及支气管分支通畅。左侧锁骨上窝、主动脉旁见小淋巴结，大者短径为7MM，边界清晰，大致同前。双侧胸腔内未见积液。胸膜未见增厚粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝S4见一低密度灶，边界尚清，大小约5MM，增强扫描强化不明显。肝S4、S5包膜下见点状高密度灶，大小约7MM。胆囊大小正常，其内未见结石影；肝内胆管、胆总管未见扩张，其内未见结石影。肝门区正常。门静脉未见异常。脾、胰腺、双肾见及双肾上腺形态及密度未见明显异常。腹主动脉旁未见肿大淋巴结。甲状腺双叶见数个高密度灶，大者约8MM×6MM，边界清，未见强化。喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。右侧腮腺见一结节，直径约5MM，边界清楚，内见钙化。双侧颌下腺、左侧腮腺大小形态正常，密度均匀。双颈未见明显肿大淋巴结。所示颅骨、颈椎、左侧锁骨、双侧肱骨头、双侧肩胛骨、双侧部分肋骨、胸骨、多发胸椎、腰椎及附件见骨质破坏，较前部分稍增大、部分较前致密。T10椎体右旁见软组织结节，大小为12MM×20MM，边界清晰，密度尚均匀，增强扫描明显强化，较前相仿。</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -8097,7 +8097,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>1.结合临床,前纵膈小细胞癌治疗后,请结合前片;纵膈、双侧锁骨上、右肺门淋巴结转移;双肺、胸膜转移;膈脚后淋巴结肿大2.右肾上腺区结节灶,建议观察3.左侧胸腔积液,左侧膈肌上提前纵膈可见类三角形软组织密度肿块影,约3.4CM×3.6CM,增强扫描呈明显不均匀强化,与邻近纵膈内软组织分界不清,纵膈内3A区、4R、9L区及双锁骨上、右肺门示结节灶,大者短径约1.4CM。双肺及双侧胸膜、叶间胸膜散在多发结节灶,大者直径约1.0CM。左侧膈肌明显上提。左胸腔内可见弧形液性密度影胸膜显示不均匀增厚、强化。肝脏形态不规则,实质密度均匀,胆囊、胰腺、脾及双肾、双肾上腺未见异常。右肾上腺区示结节灶,约0.8CM×1.3CM。膈脚后示数个结节灶,大者短径约0.8CM。</t>
+          <t>1.结合临床，前纵膈小细胞癌治疗后，请结合前片；纵膈、双侧锁骨上、右肺门淋巴结转移；双肺、胸膜转移；膈脚后淋巴结肿大2.右肾上腺区结节灶，建议观察3.左侧胸腔积液，左侧膈肌上提前纵膈可见类三角形软组织密度肿块影，约3.4CM×3.6CM，增强扫描呈明显不均匀强化，与邻近纵膈内软组织分界不清，纵膈内3A区、4R、9L区及双锁骨上、右肺门示结节灶，大者短径约1.4CM。双肺及双侧胸膜、叶间胸膜散在多发结节灶，大者直径约1.0CM。左侧膈肌明显上提。左胸腔内可见弧形液性密度影胸膜显示不均匀增厚、强化。肝脏形态不规则，实质密度均匀，胆囊、胰腺、脾及双肾、双肾上腺未见异常。右肾上腺区示结节灶，约0.8CM×1.3CM。膈脚后示数个结节灶，大者短径约0.8CM。</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -8119,7 +8119,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼内肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET/CT图像示鼻咽右侧壁局部糖代谢增高,最大SUV值约为3.8,未见明显占位征象,考虑为生理性或炎性摄取;双侧额窦、筛窦、蝶窦和上颌窦未见明显异常占位及糖代谢异常增高灶。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结;口咽、喉咽部无占位;甲状腺无肿大,右叶见钙化灶,左叶下极见大小约为7.9MM×4.8MM低密度结节。胸部PET/CT图像示右肺上叶近肺门糖代谢异常增高的不规则占位,最大SUV值约为11.4,较大者截面大小约为26.8MM×20.9MM,与右肺门分界不清;病灶周边见糖代谢异常增高的结节,最大SUV值约为9.2,较大者大小约为13.7MM×11.1MM;纵隔内主肺动脉窗多发糖代谢异常增高的肿大淋巴结,最大SUV值约为11.5,较大者大小约为24.0MM×16.6MM;双肺上叶透亮度增高;右肺上叶尖段见糖代谢轻度增高的结节样斑片影,最大SUV值约为1.2,内见钙化灶;右肺上叶局部气管受压变窄;双侧胸膜无增厚;双侧胸腔无积液;心脏无明显增大;双侧腋窝无明显糖代谢异常增高的肿大淋巴结。腹部PET/CT图像见胃窦充盈欠佳,局部糖代谢增高,最大SUV值约为6.3,未见明显占位;肠道呈线型生理性糖代谢增强;肝脏表面光整,各叶比例匀称,实质内多发无明显糖代谢异常增高的囊性低密度灶,较大者位于左外叶,大小约为32.6MM×36.4MM;肝内外胆管无扩张;脾脏不大,密度均,未见明显占位及糖代谢异常增高灶;胆囊、胰、双肾、肾上腺无殊;腹膜后无明显糖代谢异常增高的肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈,壁光滑无增厚;双侧精囊腺形态可;双侧膀胱精囊三角对称;前列腺增大,内见钙化灶;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质增生,考虑为退行性变。结合病史,符合右肺上叶中央型MT伴纵隔及右肺门淋巴结转移表现,请结合临床;双肺上叶气肿;右肺上叶慢性炎症及陈旧灶;右肺上叶局部气管受压变窄;胃窦充盈欠佳,局部糖代谢增高,考虑为生理性或炎性摄取可能,必要时胃镜检查;肝囊肿;前列腺增生伴钙化;甲状腺右叶钙化灶,左叶低密度结节,请结合超声检查。</t>
+          <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET/CT图像示鼻咽右侧壁局部糖代谢增高，最大SUV值约为3.8，未见明显占位征象，考虑为生理性或炎性摄取；双侧额窦、筛窦、蝶窦和上颌窦未见明显异常占位及糖代谢异常增高灶。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，右叶见钙化灶，左叶下极见大小约为7.9MM×4.8MM低密度结节。胸部PET/CT图像示右肺上叶近肺门糖代谢异常增高的不规则占位，最大SUV值约为11.4，较大者截面大小约为26.8MM×20.9MM，与右肺门分界不清；病灶周边见糖代谢异常增高的结节，最大SUV值约为9.2，较大者大小约为13.7MM×11.1MM；纵隔内主肺动脉窗多发糖代谢异常增高的肿大淋巴结，最大SUV值约为11.5，较大者大小约为24.0MM×16.6MM；双肺上叶透亮度增高；右肺上叶尖段见糖代谢轻度增高的结节样斑片影，最大SUV值约为1.2，内见钙化灶；右肺上叶局部气管受压变窄；双侧胸膜无增厚；双侧胸腔无积液；心脏无明显增大；双侧腋窝无明显糖代谢异常增高的肿大淋巴结。腹部PET/CT图像见胃窦充盈欠佳，局部糖代谢增高，最大SUV值约为6.3，未见明显占位；肠道呈线型生理性糖代谢增强；肝脏表面光整，各叶比例匀称，实质内多发无明显糖代谢异常增高的囊性低密度灶，较大者位于左外叶，大小约为32.6MM×36.4MM；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位及糖代谢异常增高灶；胆囊、胰、双肾、肾上腺无殊；腹膜后无明显糖代谢异常增高的肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈，壁光滑无增厚；双侧精囊腺形态可；双侧膀胱精囊三角对称；前列腺增大，内见钙化灶；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质增生，考虑为退行性变。结合病史，符合右肺上叶中央型MT伴纵隔及右肺门淋巴结转移表现，请结合临床；双肺上叶气肿；右肺上叶慢性炎症及陈旧灶；右肺上叶局部气管受压变窄；胃窦充盈欠佳，局部糖代谢增高，考虑为生理性或炎性摄取可能，必要时胃镜检查；肝囊肿；前列腺增生伴钙化；甲状腺右叶钙化灶，左叶低密度结节，请结合超声检查。</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -8141,7 +8141,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>左肺门、纵隔、左锁上示小淋巴结,大者短径约0.6CM。双颈部未见明显增大淋巴结。左肺下叶胸椎旁示类结节灶,边缘模糊,有强化,短径约0.4CM。肝胰脾右肾上腺双肾形态、密度未见明显异常。胆囊壁厚,有强化。左肾上腺饱满局部呈类结节状,有强化。左肾囊肿。T12椎体局部骨质密度呈结节状增高。1.结合临床,左肺癌并左肺门淋巴结转移治疗后,纵隔、左锁上淋巴结肿大;左肾上腺类结节灶,不除外转移;T12椎体骨质异常,考虑骨转移2.胆囊炎,左肾囊肿3.颈部未见明显异常</t>
+          <t>左肺门、纵隔、左锁上示小淋巴结，大者短径约0.6CM。双颈部未见明显增大淋巴结。左肺下叶胸椎旁示类结节灶，边缘模糊，有强化，短径约0.4CM。肝胰脾右肾上腺双肾形态、密度未见明显异常。胆囊壁厚，有强化。左肾上腺饱满局部呈类结节状，有强化。左肾囊肿。T12椎体局部骨质密度呈结节状增高。1.结合临床，左肺癌并左肺门淋巴结转移治疗后，纵隔、左锁上淋巴结肿大；左肾上腺类结节灶，不除外转移；T12椎体骨质异常，考虑骨转移2.胆囊炎，左肾囊肿3.颈部未见明显异常</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -8163,7 +8163,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>双侧乳腺、卵巢MT综合治疗后:考虑为卵巢MT腹膜、盆腔系膜多发转移;腹盆腔少量积液;两肺少许慢性炎症;主动脉瓣根部钙化;双侧胸腔、心包少量积液;脾内钙化灶。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼内肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。右侧上颌窦内粘膜增厚影,考虑为慢性炎症。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结;口咽、喉咽部无占位;甲状腺无肿大,未见明显占位。胸部PET/CT图像示双乳MT术后,右侧腋窝片状糖代谢略增高,最大SUV值为2.4,考虑为术后炎性改变;双肺纹理清晰,见少许条片影;各级支气管腔通畅;纵隔无明显肿大淋巴结,双肺门影不大;双侧胸膜无增厚;双侧胸腔少量积液;主动脉根部见钙化影;心包少量积液。腹部PET/CT图像示肝包膜及腹膜多发增厚,伴糖代谢异常增高,最大SUV值为5.5;肝包膜下少量积液;余肝实质内未见明确占位及糖代谢异常增高灶;胃壁均匀性轻度糖代谢生理性增强;肠道呈线型生理性糖代谢增强;胆囊、胰、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高灶及占位;脾脏不大,内见点状钙化灶,未见明显糖代谢异常增高灶。盆部PET/CT图像示子宫及双侧附件切除术后;盆腔腹膜及系膜多发增厚,伴糖代谢异常增高,最大SUV值为6.5;膀胱内大量显像剂生理性积聚;肠道呈线型生理性糖代谢增强;双侧腹股沟无肿大淋巴结;盆腔少量积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质增生,提示为退行性变。</t>
+          <t>双侧乳腺、卵巢MT综合治疗后：考虑为卵巢MT腹膜、盆腔系膜多发转移；腹盆腔少量积液；两肺少许慢性炎症；主动脉瓣根部钙化；双侧胸腔、心包少量积液；脾内钙化灶。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。右侧上颌窦内粘膜增厚影，考虑为慢性炎症。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示双乳MT术后，右侧腋窝片状糖代谢略增高，最大SUV值为2.4，考虑为术后炎性改变；双肺纹理清晰，见少许条片影；各级支气管腔通畅；纵隔无明显肿大淋巴结，双肺门影不大；双侧胸膜无增厚；双侧胸腔少量积液；主动脉根部见钙化影；心包少量积液。腹部PET/CT图像示肝包膜及腹膜多发增厚，伴糖代谢异常增高，最大SUV值为5.5；肝包膜下少量积液；余肝实质内未见明确占位及糖代谢异常增高灶；胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；胆囊、胰、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高灶及占位；脾脏不大，内见点状钙化灶，未见明显糖代谢异常增高灶。盆部PET/CT图像示子宫及双侧附件切除术后；盆腔腹膜及系膜多发增厚，伴糖代谢异常增高，最大SUV值为6.5；膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；双侧腹股沟无肿大淋巴结；盆腔少量积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质增生，提示为退行性变。</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -8180,7 +8180,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>左乳外下象限MT伴左侧腋窝淋巴结转移;左侧内乳淋巴结转移不除外;右肺中叶及左肺下叶小结节,请随访;甲状腺密度欠均匀,请结合超声检查。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼内肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽部PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。双侧额窦、筛窦、双侧蝶窦和双侧上颌窦未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结;口咽、喉咽部无占位;甲状腺密度欠均匀。胸部PET/CT图像示左侧腋窝多发糖代谢异常增高的肿大淋巴结,糖代谢较高且较大者最大SUV值约为12.8,大小约为19.7MM×18.1MM;左乳外下象限见糖代谢异常增高的结节,最大SUV值约为6.7,大小约为14.4MM×10.6MM;左侧内乳(约第2肋水平)见糖代谢轻度增高的淋巴结,最大SUV值约为1.4,大小约为6.3MM×2.6MM;两肺纹理清晰,右肺中叶及左肺下叶见直径均小于5.0MM的小结节,无明显糖代谢异常增高;各级支气管腔通畅;纵隔及两肺门无明显肿大淋巴结及糖代谢异常增高灶;双侧胸腔无积液;心脏无明显增大。腹部PET图像示胃部充盈可,胃壁均匀性轻度糖代谢生理性增强;肠道呈线型生理性糖代谢增强;肝脏、胆囊、胰腺、脾脏、双肾上腺、双肾、双输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整,各叶比例匀称,实质内未见明显占位;肝内外胆管无扩张;脾脏不大,密度均匀,未见明显占位;胆囊、胰腺、双肾、双肾上腺无殊;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈可,壁光滑无增厚;子宫及双侧附件区未见明显占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT平扫骨窗示部分颈、胸、腰、骶椎体及椎小关节骨质增生,考虑为退行性变。</t>
+          <t>左乳外下象限MT伴左侧腋窝淋巴结转移；左侧内乳淋巴结转移不除外；右肺中叶及左肺下叶小结节，请随访；甲状腺密度欠均匀，请结合超声检查。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽部PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。双侧额窦、筛窦、双侧蝶窦和双侧上颌窦未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺密度欠均匀。胸部PET/CT图像示左侧腋窝多发糖代谢异常增高的肿大淋巴结，糖代谢较高且较大者最大SUV值约为12.8，大小约为19.7MM×18.1MM；左乳外下象限见糖代谢异常增高的结节，最大SUV值约为6.7，大小约为14.4MM×10.6MM；左侧内乳(约第2肋水平)见糖代谢轻度增高的淋巴结，最大SUV值约为1.4，大小约为6.3MM×2.6MM；两肺纹理清晰，右肺中叶及左肺下叶见直径均小于5.0MM的小结节，无明显糖代谢异常增高；各级支气管腔通畅；纵隔及两肺门无明显肿大淋巴结及糖代谢异常增高灶；双侧胸腔无积液；心脏无明显增大。腹部PET图像示胃部充盈可，胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝脏、胆囊、胰腺、脾脏、双肾上腺、双肾、双输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内未见明显占位；肝内外胆管无扩张；脾脏不大，密度均匀，未见明显占位；胆囊、胰腺、双肾、双肾上腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈可，壁光滑无增厚；子宫及双侧附件区未见明显占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT平扫骨窗示部分颈、胸、腰、骶椎体及椎小关节骨质增生，考虑为退行性变。</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -8202,7 +8202,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼内肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。双侧上颌窦粘膜增厚,考虑为慢性炎症;其余副鼻窦未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结,左侧锁骨区见一枚大小约为9.1MM×6.8MM的淋巴结,考虑为慢性非特异性炎症;口咽、喉咽部无占位;甲状腺无肿大,双叶密度欠均,左叶中部见一枚大小约为10.1MM×5.4MM的低密度灶。胸部PET/CT图像示左侧乳腺外上象限见一枚糖代谢异常增高的软组织影,病灶自左乳腺体延伸至皮下,呈不规则分叶状,边缘见细短毛刺,最大SUV值约为15.6;左侧腋下见数枚稍大淋巴结,较大者大小约为12.2MM×7.7MM,其中一枚(约主动脉弓水平)见糖代谢轻度增高,最大SUV值约为2.4;右肺中叶内侧段及左肺上叶下舌段见不伴糖代谢异常增高的纤维条索灶,各级支气管腔通畅;双肺门、纵隔、胸壁、右侧乳腺、右侧腋窝等均未见明显糖代谢异常增高灶或占位。双侧胸膜无增厚;双侧胸腔无积液;心脏无明显增大。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强;肠道呈线型生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整,各叶比例匀称,肝左叶见数枚低密度影,较大者位于左外叶,直径约为9.8MM,其余肝脏实质内未见明显占位;肝内外胆管无扩张;脾脏不大,密度均,未见明显占位;胆囊、胰、双肾、肾上腺无殊;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET/CT图像示右下盆腔小肠局灶性糖代谢增高,最大SUV值约为6.2,延迟1.5小时后最大SUV值约为5.1,局部未见明显肠壁增厚;左侧附件区见一大小约为31.4MM×29.7MM的囊性低密度影,边缘见糖代谢轻度增高,最大SUV值约为3.0;子宫形态不规则增大,右缘见一大小约为58.2MM×43.2MM、糖代谢轻度增高的等密度团块影,最大SUV值约为2.8;膀胱内显像剂生理性积聚;余肠道呈线型生理性糖代谢增强;盆腔及双侧腹股沟处未见明显糖代谢异常增强或占位;盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见异常。考虑为左乳外上象限MT伴左侧腋下淋巴结转移可能,请结合临床;甲状腺左叶无糖代谢异常增高的低密度灶,考虑为良性病变可能,建议结合超声检查;两肺慢性炎症;肝左叶囊肿;盆腔小肠局灶性糖代谢增高,考虑为生理性摄取或良性病变可能;子宫肌瘤,左侧卵巢良性病变(囊肿可能),请结合妇科超声检查。</t>
+          <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。双侧上颌窦粘膜增厚，考虑为慢性炎症；其余副鼻窦未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结，左侧锁骨区见一枚大小约为9.1MM×6.8MM的淋巴结，考虑为慢性非特异性炎症；口咽、喉咽部无占位；甲状腺无肿大，双叶密度欠均，左叶中部见一枚大小约为10.1MM×5.4MM的低密度灶。胸部PET/CT图像示左侧乳腺外上象限见一枚糖代谢异常增高的软组织影，病灶自左乳腺体延伸至皮下，呈不规则分叶状，边缘见细短毛刺，最大SUV值约为15.6；左侧腋下见数枚稍大淋巴结，较大者大小约为12.2MM×7.7MM，其中一枚(约主动脉弓水平)见糖代谢轻度增高，最大SUV值约为2.4；右肺中叶内侧段及左肺上叶下舌段见不伴糖代谢异常增高的纤维条索灶，各级支气管腔通畅；双肺门、纵隔、胸壁、右侧乳腺、右侧腋窝等均未见明显糖代谢异常增高灶或占位。双侧胸膜无增厚；双侧胸腔无积液；心脏无明显增大。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，肝左叶见数枚低密度影，较大者位于左外叶，直径约为9.8MM，其余肝脏实质内未见明显占位；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；胆囊、胰、双肾、肾上腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET/CT图像示右下盆腔小肠局灶性糖代谢增高，最大SUV值约为6.2，延迟1.5小时后最大SUV值约为5.1，局部未见明显肠壁增厚；左侧附件区见一大小约为31.4MM×29.7MM的囊性低密度影，边缘见糖代谢轻度增高，最大SUV值约为3.0；子宫形态不规则增大，右缘见一大小约为58.2MM×43.2MM、糖代谢轻度增高的等密度团块影，最大SUV值约为2.8；膀胱内显像剂生理性积聚；余肠道呈线型生理性糖代谢增强；盆腔及双侧腹股沟处未见明显糖代谢异常增强或占位；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见异常。考虑为左乳外上象限MT伴左侧腋下淋巴结转移可能，请结合临床；甲状腺左叶无糖代谢异常增高的低密度灶，考虑为良性病变可能，建议结合超声检查；两肺慢性炎症；肝左叶囊肿；盆腔小肠局灶性糖代谢增高，考虑为生理性摄取或良性病变可能；子宫肌瘤，左侧卵巢良性病变(囊肿可能)，请结合妇科超声检查。</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -8219,7 +8219,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET/CT图像示2012-4-10本院MRI图像示脑内多发异常强化灶处未见明显糖代谢异常,脑内另见多发小低密度灶;余脑皮质及双侧基底节、丘脑、小脑放射性分布对称,未见明显糖代谢异常;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET/CT图像示眶内结构及其糖代谢未见明显异常。鼻咽部、咽旁间隙、副鼻窦结构及其糖代谢均未见明显异常。颈部PET/CT图像示双侧锁骨区见多发糖代谢异常增高的肿大淋巴结,最大者大小为19.1MM×15.8MM,最大SUV值为11.27;余双侧颈部、甲状腺等均未见明显糖代谢异常增高灶及占位性病变。双侧锁骨区糖代谢异常增高的肿大淋巴结较前增多、增大,糖代谢程度增高。胸部PET/CT图像示左下肺MT术后,纵隔及右侧内乳多发糖代谢异常增高的肿大淋巴结,最大者大小为14.7MM×11.2MM,最大SUV值为11.33;余处未见明显糖代谢异常增高灶及占位性病变;双侧胸腔无积液;心脏不大。与2010-12-6本院PET/CT图像相比,右侧内乳新增糖代谢异常增高的肿大淋巴结,纵隔淋巴结较前缩小,糖代谢程度与前相仿。腹部PET/CT图像见腹主动脉旁见多发糖代谢异常增高的肿大淋巴结,最大者大小为16.4MM×12.2MM,最大SUV值为13.54;肝脏表面光整,各叶比例匀称,肝实质密度普遍减低,低于脾脏,实质内未见异常占位;肝内外胆管无扩张;双肾多发无明显糖代谢的低密度灶,边界清楚,最大者大小为26.3MM×23.0MM;胃壁均匀性轻度生理性糖代谢增强;肠道呈线型生理性糖代谢增强;胆囊、胰、脾、双肾上腺、肾、输尿管等处未见明显糖代谢异常增高灶及占位性病变;腹腔无积液。与2010-12-6本院PET/CT图像相比,腹主动脉旁新增多发糖代谢异常增高的肿大淋巴结。盆部PET图像示膀胱内大量放射性生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈,壁光滑无增厚;双侧精囊腺形态可;双侧膀胱精囊三角对称;前列腺不大,密度均;盆腔内未见占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET/CT图像见右侧肱骨上段及右侧髂骨局部见糖代谢异常增高的高密度灶,最大SUV值分别为2.78、3.64;余处未见异常糖代谢增强灶及骨质破坏吸收征象。与2010-12-6本院PET/CT图像相比,右肱骨及髂骨新增糖代谢异常增高灶。左下肺MT综合治疗后,与2010-12-6本院PET/CT图像相比,左锁骨区、内乳、后腹膜新增多发淋巴结转移,右肱骨及髂骨新增转移灶;右锁骨区转移性淋巴结较前增多、增大,糖代谢程度增高,纵隔转移性淋巴结较前缩小,糖代谢程度相仿;本院2012-4-10增强MRI所示脑内多发强化灶未见明显糖代谢异常,请结合临床;脑内多发腔隙性梗塞灶;脂肪肝;双肾无明显糖代谢的低密度灶,考虑为良性病变。</t>
+          <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET/CT图像示2012-4-10本院MRI图像示脑内多发异常强化灶处未见明显糖代谢异常，脑内另见多发小低密度灶；余脑皮质及双侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET/CT图像示眶内结构及其糖代谢未见明显异常。鼻咽部、咽旁间隙、副鼻窦结构及其糖代谢均未见明显异常。颈部PET/CT图像示双侧锁骨区见多发糖代谢异常增高的肿大淋巴结，最大者大小为19.1MM×15.8MM，最大SUV值为11.27；余双侧颈部、甲状腺等均未见明显糖代谢异常增高灶及占位性病变。双侧锁骨区糖代谢异常增高的肿大淋巴结较前增多、增大，糖代谢程度增高。胸部PET/CT图像示左下肺MT术后，纵隔及右侧内乳多发糖代谢异常增高的肿大淋巴结，最大者大小为14.7MM×11.2MM，最大SUV值为11.33；余处未见明显糖代谢异常增高灶及占位性病变；双侧胸腔无积液；心脏不大。与2010-12-6本院PET/CT图像相比，右侧内乳新增糖代谢异常增高的肿大淋巴结，纵隔淋巴结较前缩小，糖代谢程度与前相仿。腹部PET/CT图像见腹主动脉旁见多发糖代谢异常增高的肿大淋巴结，最大者大小为16.4MM×12.2MM，最大SUV值为13.54；肝脏表面光整，各叶比例匀称，肝实质密度普遍减低，低于脾脏，实质内未见异常占位；肝内外胆管无扩张；双肾多发无明显糖代谢的低密度灶，边界清楚，最大者大小为26.3MM×23.0MM；胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；胆囊、胰、脾、双肾上腺、肾、输尿管等处未见明显糖代谢异常增高灶及占位性病变；腹腔无积液。与2010-12-6本院PET/CT图像相比，腹主动脉旁新增多发糖代谢异常增高的肿大淋巴结。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈，壁光滑无增厚；双侧精囊腺形态可；双侧膀胱精囊三角对称；前列腺不大，密度均；盆腔内未见占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像见右侧肱骨上段及右侧髂骨局部见糖代谢异常增高的高密度灶，最大SUV值分别为2.78、3.64；余处未见异常糖代谢增强灶及骨质破坏吸收征象。与2010-12-6本院PET/CT图像相比，右肱骨及髂骨新增糖代谢异常增高灶。左下肺MT综合治疗后，与2010-12-6本院PET/CT图像相比，左锁骨区、内乳、后腹膜新增多发淋巴结转移，右肱骨及髂骨新增转移灶；右锁骨区转移性淋巴结较前增多、增大，糖代谢程度增高，纵隔转移性淋巴结较前缩小，糖代谢程度相仿；本院2012-4-10增强MRI所示脑内多发强化灶未见明显糖代谢异常，请结合临床；脑内多发腔隙性梗塞灶；脂肪肝；双肾无明显糖代谢的低密度灶，考虑为良性病变。</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -8236,7 +8236,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>左乳癌术后,左侧乳腺缺失,左侧胸壁未见明显肿物影,右侧乳腺未见明显异常密度灶,双侧腋窝未见明显肿大淋巴结。双肺纹理增粗,左肺尖见片状及条索灶,部分呈网格样改变。双肺见弥漫分布结节灶,大小约2MM×2MM~16MM×19MM,最大者位于右肺下叶背段,边缘毛糙,见短毛刺,临近胸膜可见牵拉,增强后明显强化。右侧锁骨上、下气管旁、双肺门、隆突下见多个淋巴结,短径约4~7MM,较明显强化。双侧胸腔见少量积液。双侧胸膜无增厚、粘连。肝内见多个结节状及团块状病灶,部分相互融合,最大者位于肝S3/4,呈多结节相互融合状,大小约37MM×39MM,边缘可见强化。肝内胆管正常,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。门静脉所见正常。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。双肾所见正常。双肾上腺所见正常。肝脾包膜、盆底腹膜、肠系膜、大网膜明显增厚,部分呈类结节状,大网膜增厚呈饼状,增强后不均匀强化。右侧前膈角、肝门区、胃左、腹腔干、腹主动脉旁见肿大淋巴结,最大者约18MM×21MM,增强后较明显强化。腹盆腔见大量积液。膀胱充盈良好,境界清楚。子宫大小、形态未见明显异常,子宫颈大小、形态未见异常。双侧髂血管旁、腹股沟未见肿大淋巴结。甲状腺双叶及峡部形态正常,密度均匀,未见占位性病变。喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。双侧颌下腺、腮腺大小形态正常,密度均匀。双颈IB、II区见数个淋巴结,短径约4~7MM,较明显强化。右侧肱骨、多个椎体见溶骨性骨质破坏,部分病灶周围见软组织肿块形成。左乳癌术后改变。左肺尖斑片及条索灶,考虑放射性纤维化可能性大。双肺弥漫分布结节灶,考虑转移瘤可能性大,右肺上叶最大病灶可见分叶及毛刺,原发癌待排。右侧锁骨上、双肺门、纵隔、右侧前膈角、肝门区、胃左、腹腔干、腹主动脉旁多个淋巴结,考虑转移可能性大。肝内多发结节状病灶,考虑转移瘤可能性大。肝脾包膜、盆底腹膜、肠系膜、大网膜明显增厚,考虑转移可能性大。双侧胸腔积液,腹盆腔积液。右侧肱骨、多个椎体骨质破坏,考虑转移。</t>
+          <t>左乳癌术后，左侧乳腺缺失，左侧胸壁未见明显肿物影，右侧乳腺未见明显异常密度灶，双侧腋窝未见明显肿大淋巴结。双肺纹理增粗，左肺尖见片状及条索灶，部分呈网格样改变。双肺见弥漫分布结节灶，大小约2MM×2MM~16MM×19MM，最大者位于右肺下叶背段，边缘毛糙，见短毛刺，临近胸膜可见牵拉，增强后明显强化。右侧锁骨上、下气管旁、双肺门、隆突下见多个淋巴结，短径约4~7MM，较明显强化。双侧胸腔见少量积液。双侧胸膜无增厚、粘连。肝内见多个结节状及团块状病灶，部分相互融合，最大者位于肝S3/4，呈多结节相互融合状，大小约37MM×39MM，边缘可见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾所见正常。双肾上腺所见正常。肝脾包膜、盆底腹膜、肠系膜、大网膜明显增厚，部分呈类结节状，大网膜增厚呈饼状，增强后不均匀强化。右侧前膈角、肝门区、胃左、腹腔干、腹主动脉旁见肿大淋巴结，最大者约18MM×21MM，增强后较明显强化。腹盆腔见大量积液。膀胱充盈良好，境界清楚。子宫大小、形态未见明显异常，子宫颈大小、形态未见异常。双侧髂血管旁、腹股沟未见肿大淋巴结。甲状腺双叶及峡部形态正常，密度均匀，未见占位性病变。喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。双侧颌下腺、腮腺大小形态正常，密度均匀。双颈IB、II区见数个淋巴结，短径约4~7MM，较明显强化。右侧肱骨、多个椎体见溶骨性骨质破坏，部分病灶周围见软组织肿块形成。左乳癌术后改变。左肺尖斑片及条索灶，考虑放射性纤维化可能性大。双肺弥漫分布结节灶，考虑转移瘤可能性大，右肺上叶最大病灶可见分叶及毛刺，原发癌待排。右侧锁骨上、双肺门、纵隔、右侧前膈角、肝门区、胃左、腹腔干、腹主动脉旁多个淋巴结，考虑转移可能性大。肝内多发结节状病灶，考虑转移瘤可能性大。肝脾包膜、盆底腹膜、肠系膜、大网膜明显增厚，考虑转移可能性大。双侧胸腔积液，腹盆腔积液。右侧肱骨、多个椎体骨质破坏，考虑转移。</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -8258,7 +8258,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>1.右肺下叶近肺门处团块影,考虑右肺下叶肺癌,并双肺、右胸膜多发转移;较前CT(2016-09-13)相仿;2.心包少量积液,较前相仿;3.甲状腺改变,请结合临床。右肺下叶可见不规则软组织密度影,与右肺门分界不清,边缘毛糙,分叶状,较大截面约2.25CM×2.35CM,右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影,部分边缘毛糙;纵隔内未见增大淋巴结影。心包内见少许液性密度影。甲状腺增大。</t>
+          <t>1.右肺下叶近肺门处团块影，考虑右肺下叶肺癌，并双肺、右胸膜多发转移；较前CT(2016-09-13)相仿；2.心包少量积液，较前相仿；3.甲状腺改变，请结合临床。右肺下叶可见不规则软组织密度影，与右肺门分界不清，边缘毛糙，分叶状，较大截面约2.25CM×2.35CM，右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影，部分边缘毛糙；纵隔内未见增大淋巴结影。心包内见少许液性密度影。甲状腺增大。</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -8280,7 +8280,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>右肺门肿块,考虑中央型肺癌,右肺动脉主干受累;伴纵膈及右肺门多发肿大淋巴结转移。右侧胸腔积液,心包少量积液。左侧肾上腺结节,转移不除外,追查。右肺门见不规则软组织肿块影,与纵隔肿大淋巴结及周围不张肺组织分界不清,融合灶较大层面约112MM×96MM(IM26),边缘模糊;右肺动脉主干受累,右肺支气管闭塞,左主支气管壁受累。右肺中叶内侧段及右肺下叶见大片实变及模糊片絮影。左肺未见肺内结节及实变影。纵隔及右肺门多发肿大淋巴结,大部分轮廓显示不清。右侧胸腔积液,心包少许积液。扫及胸廓诸骨未见明确破坏征象。扫及左侧肾上腺见结节,约14MM×12MM(IM59)。</t>
+          <t>右肺门肿块，考虑中央型肺癌，右肺动脉主干受累；伴纵膈及右肺门多发肿大淋巴结转移。右侧胸腔积液，心包少量积液。左侧肾上腺结节，转移不除外，追查。右肺门见不规则软组织肿块影，与纵隔肿大淋巴结及周围不张肺组织分界不清，融合灶较大层面约112MM×96MM(IM26)，边缘模糊；右肺动脉主干受累，右肺支气管闭塞，左主支气管壁受累。右肺中叶内侧段及右肺下叶见大片实变及模糊片絮影。左肺未见肺内结节及实变影。纵隔及右肺门多发肿大淋巴结，大部分轮廓显示不清。右侧胸腔积液，心包少许积液。扫及胸廓诸骨未见明确破坏征象。扫及左侧肾上腺见结节，约14MM×12MM(IM59)。</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -8302,7 +8302,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>左乳外象限距乳头26MM处见一类结节状软组织灶,呈较均匀稍高密度,其中未见钙化,边界不清,边缘毛糙,范围约16MM×16MM(矢状位),增强扫描强化不明显,邻近脂肪间隙稍模糊,邻近皮肤增厚并轻度凹陷,左侧乳腺后间隙存在;余左侧乳腺内见数个小类结节灶,边界欠清,边缘毛糙,较大者直径约9MM。右侧乳腺未见明显异常。左侧腋窝见数个小淋巴结,密度均匀,边界较清楚,最大者直径约5MM。右侧腋窝、双侧内乳区未见明显肿大淋巴结。双肺见数个散在分布的小类结节灶,边界较清,直径约2~7MM不等,大者位于右肺下叶后基底段段。右肺中叶见少许条索灶,边界清。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚、粘连。心包未见积液。肝脏形态、各叶比例在正常范围以内,其外形轮廓光整,未见明显异常密度灶,增强扫描未见异常强化影。肝内胆管未见扩张,胆囊不大,胆总管未见扩张,其内未见结石。肝门区未见异常。门静脉及肝静脉未见异常。脾、胰腺、双肾及双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。颈部结构清晰,各血管充盈良好。甲状腺未见异常。喉咽腔形态正常,双侧真假声带、前联合未见增厚。双侧颌下腺、所见双侧腮腺未见异常。颈部肌群、肌间隙未见异常。颈部双侧见数个小淋巴结,边界清,大者位于左颈V区,短径约7MM,孤立散在。各颈椎及胸1椎体、颈7左侧附件骨质密度不均匀,内见多发斑片状骨质密度增高、减低影,边界欠清,颈7椎体上缘骨皮质局部缺损,周围未见明显软组织肿块形成。左乳外象限距乳头26MM处类结节灶,结合临床,符合乳腺癌;另左侧乳腺内数个小类结节灶,考虑转移可能。左侧腋窝数个小淋巴结,性质待定,建议随诊复查。颈部双侧数个小淋巴结,建议随诊复查。双肺数个散在分布的小类结节灶,考虑转移瘤与增殖灶鉴别,建议复查。各颈椎胸1椎体颈7左侧附件骨质改变,考虑转移瘤,并颈7椎体病理性骨折可能。</t>
+          <t>左乳外象限距乳头26MM处见一类结节状软组织灶，呈较均匀稍高密度，其中未见钙化，边界不清，边缘毛糙，范围约16MM×16MM(矢状位)，增强扫描强化不明显，邻近脂肪间隙稍模糊，邻近皮肤增厚并轻度凹陷，左侧乳腺后间隙存在；余左侧乳腺内见数个小类结节灶，边界欠清，边缘毛糙，较大者直径约9MM。右侧乳腺未见明显异常。左侧腋窝见数个小淋巴结，密度均匀，边界较清楚，最大者直径约5MM。右侧腋窝、双侧内乳区未见明显肿大淋巴结。双肺见数个散在分布的小类结节灶，边界较清，直径约2~7MM不等，大者位于右肺下叶后基底段段。右肺中叶见少许条索灶，边界清。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚、粘连。心包未见积液。肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，未见明显异常密度灶，增强扫描未见异常强化影。肝内胆管未见扩张，胆囊不大，胆总管未见扩张，其内未见结石。肝门区未见异常。门静脉及肝静脉未见异常。脾、胰腺、双肾及双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。颈部结构清晰，各血管充盈良好。甲状腺未见异常。喉咽腔形态正常，双侧真假声带、前联合未见增厚。双侧颌下腺、所见双侧腮腺未见异常。颈部肌群、肌间隙未见异常。颈部双侧见数个小淋巴结，边界清，大者位于左颈V区，短径约7MM，孤立散在。各颈椎及胸1椎体、颈7左侧附件骨质密度不均匀，内见多发斑片状骨质密度增高、减低影，边界欠清，颈7椎体上缘骨皮质局部缺损，周围未见明显软组织肿块形成。左乳外象限距乳头26MM处类结节灶，结合临床，符合乳腺癌；另左侧乳腺内数个小类结节灶，考虑转移可能。左侧腋窝数个小淋巴结，性质待定，建议随诊复查。颈部双侧数个小淋巴结，建议随诊复查。双肺数个散在分布的小类结节灶，考虑转移瘤与增殖灶鉴别，建议复查。各颈椎胸1椎体颈7左侧附件骨质改变，考虑转移瘤，并颈7椎体病理性骨折可能。</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -8324,7 +8324,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>右侧乳腺癌术后改变,局部未见明确肿物。右侧内乳血管旁结节,考虑转移瘤可能。右侧内乳血管旁数个小淋巴结,性质待定,建议复查。左肺上叶舌段、右肺中叶内侧段少许纤维增殖灶。甲状腺左右叶病变,考虑良性病变。肝S7肝内胆管结石。右侧肩胛骨致密结节,考虑骨岛可能性大。右侧乳腺癌术后:右乳术后缺失,右侧胸壁未见明显软组织肿物。左侧乳腺未见明确病变。双侧腋窝未见肿大淋巴结。右侧内乳血管旁见一结节(SE10,IM76),大小约14MM×8MM,增强扫描强化明显;右侧内乳血管旁另见数个小淋巴结,大者短径约4MM,增强扫描轻中度强化。左肺上叶舌段、右肺中叶内侧段见少许条索影,边界清;余肺内未见明显实质性病变。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚、粘连。扫描所见甲状腺右叶见一小低密度灶,直径约4MM,增强扫描强化不明显;甲状腺左叶见一小斑点状钙化灶。扫描所见肝S7见一结节状致密影。右侧肩胛骨见一结节状致密影;余扫描范围内未见明确骨质破坏。</t>
+          <t>右侧乳腺癌术后改变，局部未见明确肿物。右侧内乳血管旁结节，考虑转移瘤可能。右侧内乳血管旁数个小淋巴结，性质待定，建议复查。左肺上叶舌段、右肺中叶内侧段少许纤维增殖灶。甲状腺左右叶病变，考虑良性病变。肝S7肝内胆管结石。右侧肩胛骨致密结节，考虑骨岛可能性大。右侧乳腺癌术后：右乳术后缺失，右侧胸壁未见明显软组织肿物。左侧乳腺未见明确病变。双侧腋窝未见肿大淋巴结。右侧内乳血管旁见一结节(SE10，IM76)，大小约14MM×8MM，增强扫描强化明显；右侧内乳血管旁另见数个小淋巴结，大者短径约4MM，增强扫描轻中度强化。左肺上叶舌段、右肺中叶内侧段见少许条索影，边界清；余肺内未见明显实质性病变。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚、粘连。扫描所见甲状腺右叶见一小低密度灶，直径约4MM，增强扫描强化不明显；甲状腺左叶见一小斑点状钙化灶。扫描所见肝S7见一结节状致密影。右侧肩胛骨见一结节状致密影；余扫描范围内未见明确骨质破坏。</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -8341,7 +8341,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>考虑为右肺上叶尖段及前段MT侵犯邻近胸膜伴右颈部、右锁骨区、右肺门及纵隔淋巴结转移;两肺多发转移可能;右侧腋窝淋巴结转移不除外;病情较2011-12-9外院PET/CT图像明显进展;两肺慢性炎症及陈旧灶;右侧胸腔少量积液;甲状腺密度欠均匀,请结合超声检查;膀胱憩室;脑内多发腔梗灶;老年脑。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像,与2011-12-9外院PET/CT图像比较。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑未见明显糖代谢异常。CT平扫示双侧侧脑室旁及基底节区见小点状低密度影,余脑实质内未见明显异常密度影;各脑室、脑池扩大;脑沟﹑脑裂稍增宽;中线结构居中。眼眶部、鼻咽PET/CT图像无殊。筛窦及双侧上颌窦粘膜增厚,考虑为慢性炎症,余副鼻窦无殊。颈部PET/CT图像示新增右侧颈后三角及锁骨区糖代谢异常增高的淋巴结,较大且糖代谢较高者大小约为15.0MM×9.3MM,最大SUV值约为4.1;口咽、喉咽部无占位;甲状腺无肿大,其内密度不均匀减低。胸部PET/CT图像示双肺纹理增多,右肺上叶尖段及前段见团块状糖代谢异常增高灶,大小分别约为46.2MM×32.5MM和35.3MM×26.7MM,最大SUV值分别约为6.1和4.8,较前增大、密度变实、糖代谢增高,病灶与邻近胸膜分界不清;两肺见多枚类圆形不伴糖代谢异常增高的结节,较大者位于右肺中叶,直径约为17.7MM,较前增多、增大;两肺另见条索状密度增高影;右肺中叶见钙化结节;右肺门及纵隔隆突下见糖代谢异常增高的肿大淋巴结,较大且糖代谢较高者位于隆突下,大小约为20.6MM×13.5MM,最大SUV值约为4.9;左肺门影不大;右侧胸膜略增厚,左侧胸膜无增厚;右侧胸腔少量积液,引流管留置中;左侧胸腔无积液;心脏无明显增大;右侧腋窝见糖代谢轻度增高的增大淋巴结,大小约为14.1MM×9.5MM,最大SUV值约为1.9;左侧腋窝无明显肿大淋巴结;双侧乳腺无殊。腹部PET图像示胃壁均匀性轻度糖代谢生理性增强;肠道呈线型生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整,各叶比例匀称,实质内未见明显占位;肝内外胆管无扩张;脾脏不大,密度均,未见明显占位;双侧肾内血管壁见钙化灶;胆囊、胰、双肾上腺无殊;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈,左前、右后壁见小囊状向外突起;子宫和双附件区未见明显占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质增生,考虑为退行性变;第12胸椎变扁,呈楔形变;左侧第9后肋见小圆形致密影,考虑为骨岛。</t>
+          <t>考虑为右肺上叶尖段及前段MT侵犯邻近胸膜伴右颈部、右锁骨区、右肺门及纵隔淋巴结转移；两肺多发转移可能；右侧腋窝淋巴结转移不除外；病情较2011-12-9外院PET/CT图像明显进展；两肺慢性炎症及陈旧灶；右侧胸腔少量积液；甲状腺密度欠均匀，请结合超声检查；膀胱憩室；脑内多发腔梗灶；老年脑。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像，与2011-12-9外院PET/CT图像比较。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑未见明显糖代谢异常。CT平扫示双侧侧脑室旁及基底节区见小点状低密度影，余脑实质内未见明显异常密度影；各脑室、脑池扩大；脑沟﹑脑裂稍增宽；中线结构居中。眼眶部、鼻咽PET/CT图像无殊。筛窦及双侧上颌窦粘膜增厚，考虑为慢性炎症，余副鼻窦无殊。颈部PET/CT图像示新增右侧颈后三角及锁骨区糖代谢异常增高的淋巴结，较大且糖代谢较高者大小约为15.0MM×9.3MM，最大SUV值约为4.1；口咽、喉咽部无占位；甲状腺无肿大，其内密度不均匀减低。胸部PET/CT图像示双肺纹理增多，右肺上叶尖段及前段见团块状糖代谢异常增高灶，大小分别约为46.2MM×32.5MM和35.3MM×26.7MM，最大SUV值分别约为6.1和4.8，较前增大、密度变实、糖代谢增高，病灶与邻近胸膜分界不清；两肺见多枚类圆形不伴糖代谢异常增高的结节，较大者位于右肺中叶，直径约为17.7MM，较前增多、增大；两肺另见条索状密度增高影；右肺中叶见钙化结节；右肺门及纵隔隆突下见糖代谢异常增高的肿大淋巴结，较大且糖代谢较高者位于隆突下，大小约为20.6MM×13.5MM，最大SUV值约为4.9；左肺门影不大；右侧胸膜略增厚，左侧胸膜无增厚；右侧胸腔少量积液，引流管留置中；左侧胸腔无积液；心脏无明显增大；右侧腋窝见糖代谢轻度增高的增大淋巴结，大小约为14.1MM×9.5MM，最大SUV值约为1.9；左侧腋窝无明显肿大淋巴结；双侧乳腺无殊。腹部PET图像示胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内未见明显占位；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；双侧肾内血管壁见钙化灶；胆囊、胰、双肾上腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈，左前、右后壁见小囊状向外突起；子宫和双附件区未见明显占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质增生，考虑为退行性变；第12胸椎变扁，呈楔形变；左侧第9后肋见小圆形致密影，考虑为骨岛。</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -8437,7 +8437,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>静息状态上超声心动图未见异常常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,30,20-37,右房内径,32,19-40,右室舒张末内径,39,35-56,右室收缩末内径,27,23-35,室间隔厚度,9,6-11,右室后壁厚度,9,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。,3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。,4、左房室不大，肺动脉不增宽，肺动脉血流图未见异常。,三、,右心功能测定：,LVEF：57%;,二尖瓣血流图示E/A,&amp;lt;,1;DT:169MMs,四、组织多普勒测定：,DTI示S波峰值:9.36CM/s;E'/A',&amp;lt;,1,五、结论：,</t>
+          <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，30，20-37，右房内径，32，19-40，右室舒张末内径，39，35-56，右室收缩末内径，27，23-35，室间隔厚度，9，6-11，右室后壁厚度，9，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，肺动脉血流图未见异常。，三、，右心功能测定：，LVEF：57%；，二尖瓣血流图示E/A，&amp;lt；，1；DT：169MMs，四、组织多普勒测定：，DTI示S波峰值：9.36CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
         </is>
       </c>
       <c r="B408" t="inlineStr"/>
@@ -8693,7 +8693,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>肝内多发边缘强化结节，考虑为肝血管瘤可能性大。肝内多发不均匀强化或环形强化病变，结合病史转移瘤可能大胆囊结石。左肾错构瘤。约T9胸椎可疑骨质破坏肝脏饱满，表面光滑，各叶比例协调，于肝右左叶内可见多发大小不等的低密度灶，边缘模糊不清，最大者位于左后叶，直径约6.8CM。增强扫描早期可见病灶边缘呈结节状强化，其后强化向中央扩展，延迟期病灶进一步强化。肝内另见多个大小不等的低密度灶，较大者位于肝左叶前下段，最大径约6,7CM，增强后不均匀强化或环形强化。胆囊不大，壁不厚，胆囊底部见一环形高密度影。胰腺、脾脏形态正常。左肾前外侧皮质见一混杂密度影突出于肾皮质表面，最大径约4.5CM，基底部肾皮质结构紊乱，病变大部分为脂肪密度影，内部可见不规则软组织密度影。增强扫描病变实质部分明显强化。约T9胸椎可见限局性骨质密度减低。</t>
+          <t>肝内多发边缘强化结节，考虑为肝血管瘤可能性大。肝内多发不均匀强化或环形强化病变，结合病史转移瘤可能大胆囊结石。左肾错构瘤。约T9胸椎可疑骨质破坏肝脏饱满，表面光滑，各叶比例协调，于肝右左叶内可见多发大小不等的低密度灶，边缘模糊不清，最大者位于左后叶，直径约6.8CM。增强扫描早期可见病灶边缘呈结节状强化，其后强化向中央扩展，延迟期病灶进一步强化。肝内另见多个大小不等的低密度灶，较大者位于肝左叶前下段，最大径约6，7CM，增强后不均匀强化或环形强化。胆囊不大，壁不厚，胆囊底部见一环形高密度影。胰腺、脾脏形态正常。左肾前外侧皮质见一混杂密度影突出于肾皮质表面，最大径约4.5CM，基底部肾皮质结构紊乱，病变大部分为脂肪密度影，内部可见不规则软组织密度影。增强扫描病变实质部分明显强化。约T9胸椎可见限局性骨质密度减低。</t>
         </is>
       </c>
       <c r="B427" t="inlineStr"/>
@@ -8785,7 +8785,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>静息状态上超声心动图未见异常(心脏彩色多普勒超声+右心功能测定+TDI),常规检查切面观,：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、M型及血流多普勒超声测量：,名称,测量值,正常值,主动脉根部内径,32,20-37MM,右房内径,39,19-40MM,右室舒张末内径,50,35-56MM,右室收缩末内径,31,23-35MM,室间隔厚度,10,6-11MM,右室后壁厚度,10,6-11MM,肺动脉收缩压,32,&amp;lt;40MMHg,医学图像序列2行2列,宽：110,二、右心功能测定及组织多普勒显像测量:,右室射血分数（LVEF）：,67,%,二尖瓣血流图：,E、A两峰,，E/A,&amp;gt;,1；DT：,170,ms,DTI示S波峰值：,10,cm/s；E/A,&amp;gt;,1,三、普通二维超声心动图和各心腔及大血管血流显像：,1、右房内径,正常,，右室内径,正常,，右室壁厚度,正常,，静息状态上右室各节段收缩活动未见异常。,2、二尖瓣,不增厚,，开放不受限，彩色多普勒,示轻微,二尖瓣反流。,3、主动脉窦部,不增宽,，升主动脉,不增宽,，主动脉瓣,不增厚,，,开放不受限,，彩色多普勒,未测及,主动脉瓣反流。,4、左房内径,正常,，左室内径,正常,，肺动脉,不增宽,，三尖瓣不增厚，开放不受限，彩色多普勒,示轻微,三尖瓣反流。,5、心包腔内,未见明显积液,。,四、结论：,</t>
+          <t>静息状态上超声心动图未见异常(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，32，20-37MM，右房内径，39，19-40MM，右室舒张末内径，50，35-56MM，右室收缩末内径，31，23-35MM，室间隔厚度，10，6-11MM，右室后壁厚度，10，6-11MM，肺动脉收缩压，32，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，67，%，二尖瓣血流图：，E、A两峰，，E/A，&amp;gt；，1；DT：，170，ms，DTI示S波峰值：，10，cm/s；E/A，&amp;gt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，正常，，右室内径，正常，，右室壁厚度，正常，，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，，开放不受限，彩色多普勒，示轻微，二尖瓣反流。，3、主动脉窦部，不增宽，，升主动脉，不增宽，，主动脉瓣，不增厚，，，开放不受限，，彩色多普勒，未测及，主动脉瓣反流。，4、左房内径，正常，，左室内径，正常，，肺动脉，不增宽，，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
         </is>
       </c>
       <c r="B433" t="inlineStr"/>
@@ -9133,7 +9133,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>静息状态上超声心动图未见异常常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,30,20-37,右房内径,33,19-40,右室舒张末内径,42,35-56,右室收缩末内径,26,23-35,室间隔厚度,8,6-11,右室后壁厚度,8,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。,3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。,4、左房室不大，肺动脉不增宽，,连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约37MMHg,。,三、,右心功能测定：,LVEF：67%;,二尖瓣血流图示E/A,&amp;gt;,1;DT:187MMs,四、组织多普勒测定：,DTI示S波峰值:9.8CM/s;E'/A',&amp;gt;,1,五、结论：,</t>
+          <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，30，20-37，右房内径，33，19-40，右室舒张末内径，42，35-56，右室收缩末内径，26，23-35，室间隔厚度，8，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约37MMHg，。，三、，右心功能测定：，LVEF：67%；，二尖瓣血流图示E/A，&amp;gt；，1；DT：187MMs，四、组织多普勒测定：，DTI示S波峰值：9.8CM/s；E'/A'，&amp;gt；，1，五、结论：，</t>
         </is>
       </c>
       <c r="B457" t="inlineStr"/>
@@ -9364,7 +9364,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>右侧卵巢囊性占位，考虑卵巢囊肿声像，建议阴道超声复查肝脏、胆囊、脾脏、胰腺、两肾、膀胱未见明显占位病变声像。两侧输尿管未见明确扩张。子宫、左侧附件区未见明显占位病变声像。肝脏大小、形态正常，包膜光滑，实质回声均匀，血管走行清晰、自然，肝内胆管不扩张，门静脉内径9MM，肝内未见明显肿物回声。CDFI：肝动脉、门静脉血流通畅，为向肝血流信号，充盈良好，肝内未见明确异常血流信号。门静脉最大血流速度约15CM/s。胆囊大小形态正常，囊壁不厚，胆囊内未见明显异常回声。脾脏大小形态正常，包膜光滑，实质回声均匀，未见明显异常回声。胰腺大小形态正常，实质回声均匀，未见明显异常回声。两肾大小形态正常，实质回声均匀，未见明显异常回声。CDFI：两肾血流呈珊瑚状，未见明确异常血流信号。两侧输尿管未见明确扩张。膀胱充盈良好，膀胱壁光滑，不厚，膀胱腔内未见明确肿物回声。子宫大小、形态正常，大小约38MM×35MM×27MM，包膜光滑，宫壁肌层回声均匀，宫腔线清晰，居中，内膜厚约2MM。两侧卵巢可探及，右侧卵巢内可见一囊性占位，大小约11MM×11MM,边界清，后方回声增强CDFI:右侧囊性占位周边及内部未见明显血流信号。</t>
+          <t>右侧卵巢囊性占位，考虑卵巢囊肿声像，建议阴道超声复查肝脏、胆囊、脾脏、胰腺、两肾、膀胱未见明显占位病变声像。两侧输尿管未见明确扩张。子宫、左侧附件区未见明显占位病变声像。肝脏大小、形态正常，包膜光滑，实质回声均匀，血管走行清晰、自然，肝内胆管不扩张，门静脉内径9MM，肝内未见明显肿物回声。CDFI：肝动脉、门静脉血流通畅，为向肝血流信号，充盈良好，肝内未见明确异常血流信号。门静脉最大血流速度约15CM/s。胆囊大小形态正常，囊壁不厚，胆囊内未见明显异常回声。脾脏大小形态正常，包膜光滑，实质回声均匀，未见明显异常回声。胰腺大小形态正常，实质回声均匀，未见明显异常回声。两肾大小形态正常，实质回声均匀，未见明显异常回声。CDFI：两肾血流呈珊瑚状，未见明确异常血流信号。两侧输尿管未见明确扩张。膀胱充盈良好，膀胱壁光滑，不厚，膀胱腔内未见明确肿物回声。子宫大小、形态正常，大小约38MM×35MM×27MM，包膜光滑，宫壁肌层回声均匀，宫腔线清晰，居中，内膜厚约2MM。两侧卵巢可探及，右侧卵巢内可见一囊性占位，大小约11MM×11MM，边界清，后方回声增强CDFI：右侧囊性占位周边及内部未见明显血流信号。</t>
         </is>
       </c>
       <c r="B473" t="inlineStr"/>
@@ -9599,7 +9599,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>静息状态上超声心动图未见异常常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,32,20-37,右房内径,35,19-40,右室舒张末内径,44,35-56,右室收缩末内径,28,23-35,室间隔厚度,10,6-11,右室后壁厚度,9,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。,3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒测及轻微主动脉瓣反流。,4、左房室不大，肺动脉不增宽，肺动脉血流图未见异常。,三、,右心功能测定：,FS:38%;LVEF:68%；二尖瓣血流图示E/A,&amp;lt;,1;DT:165MMs,四、组织多普勒测定：,DTI示S波峰值:9.07CM/s;E'/A',&amp;lt;,1,五、结论：,</t>
+          <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，32，20-37，右房内径，35，19-40，右室舒张末内径，44，35-56，右室收缩末内径，28，23-35，室间隔厚度，10，6-11，右室后壁厚度，9，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒测及轻微主动脉瓣反流。，4、左房室不大，肺动脉不增宽，肺动脉血流图未见异常。，三、，右心功能测定：，FS：38%；LVEF：68%；二尖瓣血流图示E/A，&amp;lt；，1；DT：165MMs，四、组织多普勒测定：，DTI示S波峰值：9.07CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -10017,7 +10017,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>全身骨骼平面显像：与2017-1-10本院图像比较，左侧第4前肋放射性略减淡，浓聚范围较前略缩小，建议SPECT/CT显像进一步检查明确骨损情况；新增左侧髂骨后部放射性异常浓聚灶，请结合其它检查。显像方法：&lt;?xml:namespaceprefix=ons="urn:schemas-microsoft-com:office:office"/&gt;静脉注射99MMTc-MDP约3小时后，患者取仰卧位，ANT、POST位采集全身骨骼平面影像。影像所见：全身骨骼显影清晰，放射性分布不均匀对称，与2017-1-10本院图像比较，新增左侧髂骨后部放射性异常浓聚灶；左侧第4前肋放射性略减淡，浓聚范围较前略缩小；第5腰椎放射性浓聚灶与前相仿；余处骨骼未见明显放射性异常浓聚或稀疏缺损表现。</t>
+          <t>全身骨骼平面显像：与2017-1-10本院图像比较，左侧第4前肋放射性略减淡，浓聚范围较前略缩小，建议SPECT/CT显像进一步检查明确骨损情况；新增左侧髂骨后部放射性异常浓聚灶，请结合其它检查。显像方法：&lt;?xml：namespaceprefix=ons="urn：schemas-microsoft-com：office：office"/&gt;静脉注射99MMTc-MDP约3小时后，患者取仰卧位，ANT、POST位采集全身骨骼平面影像。影像所见：全身骨骼显影清晰，放射性分布不均匀对称，与2017-1-10本院图像比较，新增左侧髂骨后部放射性异常浓聚灶；左侧第4前肋放射性略减淡，浓聚范围较前略缩小；第5腰椎放射性浓聚灶与前相仿；余处骨骼未见明显放射性异常浓聚或稀疏缺损表现。</t>
         </is>
       </c>
       <c r="B520" t="inlineStr"/>
@@ -10052,7 +10052,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>心内结构及血流未见异常静息状态上右室整体收缩功能正常二维测值（mm）：主动脉内径：21-30-23右房内径：33升主动脉：29室间隔厚度：8右室舒末内径：46右室缩末内径：25右室后壁厚度：8左室内径：19肺动脉内径：23Doppler测值：各瓣口前向血流峰速度（m/s）二尖瓣：E峰1.0A峰0.7三尖瓣：E峰0.4A峰0.5主动脉瓣：1.1肺动脉瓣：0.8心功能测值：右室舒末容积EDV：75(ml)右室缩末容积ESV：30(ml)每搏量SV：45(ml)射血分数EF：60%患者透声条件差，图像质量欠佳。各心腔内径在正常范围，右室各壁向心运动良好，未见节段性运动异常。各瓣膜开放良好,各瓣口前向血流速度在正常范围，二、三尖瓣探及微量返流。心包腔未见液性暗区。</t>
+          <t>心内结构及血流未见异常静息状态上右室整体收缩功能正常二维测值（mm）：主动脉内径：21-30-23右房内径：33升主动脉：29室间隔厚度：8右室舒末内径：46右室缩末内径：25右室后壁厚度：8左室内径：19肺动脉内径：23Doppler测值：各瓣口前向血流峰速度（m/s）二尖瓣：E峰1.0A峰0.7三尖瓣：E峰0.4A峰0.5主动脉瓣：1.1肺动脉瓣：0.8心功能测值：右室舒末容积EDV：75(ml)右室缩末容积ESV：30(ml)每搏量SV：45(ml)射血分数EF：60%患者透声条件差，图像质量欠佳。各心腔内径在正常范围，右室各壁向心运动良好，未见节段性运动异常。各瓣膜开放良好，各瓣口前向血流速度在正常范围，二、三尖瓣探及微量返流。心包腔未见液性暗区。</t>
         </is>
       </c>
       <c r="B523" t="inlineStr"/>
@@ -10309,7 +10309,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>肝内多发实质占位性病变,请结合其他检查胆囊壁增厚,胆囊结石左肾高回声病变，请结合其他检查肝肋上斜径约：14.0CM。肝脏形态大小正常，肝表面光滑，肝边缘锐，肝实质回声不均匀，肝静脉显示清晰，门脉系统无扩张，肝内血流显示良好,肝内散在多个大小不等低回声及高回声,大者约：4.6CM×5.7CM,小者约2.0CM×1.9CM。胆囊大小约：5.4CM×1.8CM。壁厚约0.6CM，胆囊内充满点状低回声,并可见强回声移动,有声影，肝内外胆管无扩张。脾肋间长约：10.0CM，脾厚约：3.2CM。脾脏回声均匀。胰腺形态大小正常，回声均匀，胰管无扩张。膀胱充盈不良。左肾大小约：11.0CM×5.1CM×5.2CM,左肾实质处可见高回声区,范围约5.8CM×6.9CM,轮廓不清。右肾大小约：11.0CM×5.1CM×5.0CM。两肾形态大小正常，皮髓质界限清晰，两肾窦无分离，两肾血流显示良好，两侧输尿管未显示。左肾下腺大小约:2.8CM×2.0CM右肾下腺大小约:1.8CM×2.4CM两肾下腺区未见明显包块样回声腹腔内可见数个淋巴结回声,大者约：2.4CM×1.5CM</t>
+          <t>肝内多发实质占位性病变，请结合其他检查胆囊壁增厚，胆囊结石左肾高回声病变，请结合其他检查肝肋上斜径约：14.0CM。肝脏形态大小正常，肝表面光滑，肝边缘锐，肝实质回声不均匀，肝静脉显示清晰，门脉系统无扩张，肝内血流显示良好，肝内散在多个大小不等低回声及高回声，大者约：4.6CM×5.7CM，小者约2.0CM×1.9CM。胆囊大小约：5.4CM×1.8CM。壁厚约0.6CM，胆囊内充满点状低回声，并可见强回声移动，有声影，肝内外胆管无扩张。脾肋间长约：10.0CM，脾厚约：3.2CM。脾脏回声均匀。胰腺形态大小正常，回声均匀，胰管无扩张。膀胱充盈不良。左肾大小约：11.0CM×5.1CM×5.2CM，左肾实质处可见高回声区，范围约5.8CM×6.9CM，轮廓不清。右肾大小约：11.0CM×5.1CM×5.0CM。两肾形态大小正常，皮髓质界限清晰，两肾窦无分离，两肾血流显示良好，两侧输尿管未显示。左肾下腺大小约：2.8CM×2.0CM右肾下腺大小约：1.8CM×2.4CM两肾下腺区未见明显包块样回声腹腔内可见数个淋巴结回声，大者约：2.4CM×1.5CM</t>
         </is>
       </c>
       <c r="B541" t="inlineStr"/>
@@ -10459,7 +10459,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>静息状态上超声心动图未见异常常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,33,20-37,右房内径,31,19-40,右室舒张末内径,41,35-56,右室收缩末内径,24,23-35,室间隔厚度,9,6-11,右室后壁厚度,8,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。,3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒测及轻微主动脉瓣反流。,4、左房室不大，肺动脉不增宽，,连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约27MMHg,。,三、,右心功能测定：,LVEF:73%；二尖瓣血流图示E/A,&amp;lt;,1;DT:194MMs,四、组织多普勒测定：,DTI示S波峰值:13CM/s;E'/A',&amp;lt;,1,五、结论：,</t>
+          <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，33，20-37，右房内径，31，19-40，右室舒张末内径，41，35-56，右室收缩末内径，24，23-35，室间隔厚度，9，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒测及轻微主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约27MMHg，。，三、，右心功能测定：，LVEF：73%；二尖瓣血流图示E/A，&amp;lt；，1；DT：194MMs，四、组织多普勒测定：，DTI示S波峰值：13CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -10534,7 +10534,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>颅脑未见明确占位病变。右上肺肿物，考虑为肺癌。肝囊肿，肾囊肿。大脑各叶、小脑及脑干密度及形态未见异常。脑回形态正常，脑沟未见明显增宽、变窄，各脑室及脑池大小、形态未见异常。大脑中线结构未见移位，未见占位性病变。颅盖骨骨质未见破坏。右上肺可见软组织肿物影，大小为为51MM×35MM,可见分叶，增强扫描可见强化；左肺纹理清晰，未见结节影。气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。两侧肺门及纵隔未见明确肿大淋巴结。两侧胸腔未见积液。胸膜未见增厚。扫描层次中胸椎、胸壁骨及软组织未见异常。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，可见囊性灶，大小为诶3至5MM。肝内胆管正常，其内未见结石影。胆囊大小正常，其内未见结石影。胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。左肾可见囊肿，大小为6至20MM，右肾所见正常。两肾下腺所见正常。腹膜后未见肿大淋巴结。</t>
+          <t>颅脑未见明确占位病变。右上肺肿物，考虑为肺癌。肝囊肿，肾囊肿。大脑各叶、小脑及脑干密度及形态未见异常。脑回形态正常，脑沟未见明显增宽、变窄，各脑室及脑池大小、形态未见异常。大脑中线结构未见移位，未见占位性病变。颅盖骨骨质未见破坏。右上肺可见软组织肿物影，大小为为51MM×35MM，可见分叶，增强扫描可见强化；左肺纹理清晰，未见结节影。气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。两侧肺门及纵隔未见明确肿大淋巴结。两侧胸腔未见积液。胸膜未见增厚。扫描层次中胸椎、胸壁骨及软组织未见异常。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，可见囊性灶，大小为诶3至5MM。肝内胆管正常，其内未见结石影。胆囊大小正常，其内未见结石影。胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。左肾可见囊肿，大小为6至20MM，右肾所见正常。两肾下腺所见正常。腹膜后未见肿大淋巴结。</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -10583,7 +10583,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>颈段及部分胸下段局限性增厚，考虑食管癌。左侧气管食管沟肿大淋巴结，考虑转移。两肺未见明确病变。下腹部未见明确病变。两颈II区~V区数个小淋巴结，考虑反应性淋巴结可能大。左侧下颌窦炎。颈段及部分胸下段食管局限性管壁增厚，最厚约15MM,纵径约32MM，局部管腔狭窄，增强后较明显强化，病灶部分与气管后缘分界欠清楚，邻近左侧气管食管沟见肿大淋巴结，最大约15MM×14MM，与病灶分界不清，增强后较明显强化。两肺纹理清晰，肺内未见实质性病变。余纵隔及两肺门未见明确肿大淋巴结，气管及支气管分支通畅。两侧胸腔未见积液。两侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整。肝实质密度均匀，增强后未见异常强化，肝门区正常。门静脉主干及其分支未见异常。胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。胰腺、脾脏大小、形态正常，密度均匀，增强后未见异常强化灶。两肾及两肾下腺形态、大小、密度未见异常。胃右血管旁、腹腔干、腹主动脉未见明确肿大淋巴结。颈部结构清晰，各血管充盈良好。甲状腺两叶及峡部形态正常，密度均匀，未见占位性病变。喉咽腔形态正常，两侧真假声带未见增厚，前联合未见增厚，梨状窝对称。两侧颌上腺、腮腺大小形态正常，密度均匀。颈部肌群排列对称，密度均匀，肌间隙未见明显异常。两颈II区~V区见数个小淋巴结，最大约9MM×8MM，边界清，密度均匀，增强后均匀强化。扫描所见左侧下颌窦粘膜增厚。扫描所见骨质未见明确破坏征象。</t>
+          <t>颈段及部分胸下段局限性增厚，考虑食管癌。左侧气管食管沟肿大淋巴结，考虑转移。两肺未见明确病变。下腹部未见明确病变。两颈II区~V区数个小淋巴结，考虑反应性淋巴结可能大。左侧下颌窦炎。颈段及部分胸下段食管局限性管壁增厚，最厚约15MM，纵径约32MM，局部管腔狭窄，增强后较明显强化，病灶部分与气管后缘分界欠清楚，邻近左侧气管食管沟见肿大淋巴结，最大约15MM×14MM，与病灶分界不清，增强后较明显强化。两肺纹理清晰，肺内未见实质性病变。余纵隔及两肺门未见明确肿大淋巴结，气管及支气管分支通畅。两侧胸腔未见积液。两侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整。肝实质密度均匀，增强后未见异常强化，肝门区正常。门静脉主干及其分支未见异常。胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。胰腺、脾脏大小、形态正常，密度均匀，增强后未见异常强化灶。两肾及两肾下腺形态、大小、密度未见异常。胃右血管旁、腹腔干、腹主动脉未见明确肿大淋巴结。颈部结构清晰，各血管充盈良好。甲状腺两叶及峡部形态正常，密度均匀，未见占位性病变。喉咽腔形态正常，两侧真假声带未见增厚，前联合未见增厚，梨状窝对称。两侧颌上腺、腮腺大小形态正常，密度均匀。颈部肌群排列对称，密度均匀，肌间隙未见明显异常。两颈II区~V区见数个小淋巴结，最大约9MM×8MM，边界清，密度均匀，增强后均匀强化。扫描所见左侧下颌窦粘膜增厚。扫描所见骨质未见明确破坏征象。</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -10663,7 +10663,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>1、两房增大伴轻度二尖瓣反流2、升主动脉增宽，主动脉瓣钙化常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,31,20-37,右房内径,50,19-40,右室舒张末内径,49,35-56,右室收缩末内径,34,23-35,室间隔厚度,11,6-11,右室后壁厚度,11,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房增大，右室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻度二尖瓣反流。,3、主动脉根部不增宽，升主动脉增宽为38MM，主动脉瓣钙化，开放不受限，彩色多普勒未测及主动脉瓣反流。,4、左房增大，左室不大，肺动脉不增宽，,连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约38MMHg,。,三、,右心功能测定：,FS:30%;LVEF:60%；二尖瓣血流图示E、A单峰,四、组织多普勒测定：,DTI示S波峰值:11.9CM/s,五、结论：,</t>
+          <t>1、两房增大伴轻度二尖瓣反流2、升主动脉增宽，主动脉瓣钙化常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，31，20-37，右房内径，50，19-40，右室舒张末内径，49，35-56，右室收缩末内径，34，23-35，室间隔厚度，11，6-11，右室后壁厚度，11，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房增大，右室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻度二尖瓣反流。，3、主动脉根部不增宽，升主动脉增宽为38MM，主动脉瓣钙化，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房增大，左室不大，肺动脉不增宽，，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约38MMHg，。，三、，右心功能测定：，FS：30%；LVEF：60%；二尖瓣血流图示E、A单峰，四、组织多普勒测定：，DTI示S波峰值：11.9CM/s，五、结论：，</t>
         </is>
       </c>
       <c r="B569" t="inlineStr"/>
@@ -11016,7 +11016,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>C7-T4椎体转移瘤，T3,4椎管略受侵，T1椎体病理性骨折，请结合临床、对比原片。胸椎退变。T10-11水平黄韧带肥厚。胸椎生理曲度存在，部分椎体缘骨质增生变尖，扫描范围所见C7-T4椎体及附件内可见骨质破坏，信号呈混杂T1、混杂T2信号影，增强扫描可见明显不均匀强化。T1椎体变扁，C7-T2水平棘突周围软组织可见结节状、条片状长T2信号，局部蔓延至C7-T2水平椎管内硬膜外，增强扫描明显强化。部分椎体可见斑点状、小片状高信号影（考虑为脂肪沉积）。椎间盘未见突出及膨出信号影，T10-11水平黄韧带肥厚，相应硬膜囊后缘受压。增强扫描胸髓未见异常信号影，T9-11水平脊髓后缘可见迂曲强化血管影。</t>
+          <t>C7-T4椎体转移瘤，T3，4椎管略受侵，T1椎体病理性骨折，请结合临床、对比原片。胸椎退变。T10-11水平黄韧带肥厚。胸椎生理曲度存在，部分椎体缘骨质增生变尖，扫描范围所见C7-T4椎体及附件内可见骨质破坏，信号呈混杂T1、混杂T2信号影，增强扫描可见明显不均匀强化。T1椎体变扁，C7-T2水平棘突周围软组织可见结节状、条片状长T2信号，局部蔓延至C7-T2水平椎管内硬膜外，增强扫描明显强化。部分椎体可见斑点状、小片状高信号影（考虑为脂肪沉积）。椎间盘未见突出及膨出信号影，T10-11水平黄韧带肥厚，相应硬膜囊后缘受压。增强扫描胸髓未见异常信号影，T9-11水平脊髓后缘可见迂曲强化血管影。</t>
         </is>
       </c>
       <c r="B595" t="inlineStr"/>
@@ -11132,7 +11132,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>右房增大伴右室舒张功能减退常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,34,20-37,右房内径,42,19-40,右室舒张末内径,46,35-56,右室收缩末内径,28,23-35,室间隔厚度,11,6-11,右室后壁厚度,10,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房增大，右室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。,3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。,4、左房室不大，肺动脉不增宽，,连续多普勒据轻度三尖瓣反流估测肺动脉收缩压约38MMHg,。,三、,右心功能测定：,FS:40%;LVEF:70%；二尖瓣血流图示E/A,&amp;lt;,1;DT:170MMs,四、组织多普勒测定：,DTI示S波峰值:8.7CM/s;E'/A',&amp;lt;,1,五、结论：,</t>
+          <t>右房增大伴右室舒张功能减退常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，34，20-37，右房内径，42，19-40，右室舒张末内径，46，35-56，右室收缩末内径，28，23-35，室间隔厚度，11，6-11，右室后壁厚度，10，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房增大，右室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻度三尖瓣反流估测肺动脉收缩压约38MMHg，。，三、，右心功能测定：，FS：40%；LVEF：70%；二尖瓣血流图示E/A，&amp;lt；，1；DT：170MMs，四、组织多普勒测定：，DTI示S波峰值：8.7CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
         </is>
       </c>
       <c r="B603" t="inlineStr"/>
@@ -11214,7 +11214,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>右肺癌化疗后复查：1、右肺门区不规则高代谢肿块，且侵及肺门、胸膜及纵隔，并与胸主动脉管壁分界不清。右肺不张。2、右胸膜转移；右侧胸腔积液。3、多发骨转移。4、左肺多发小结节，未见明显高代谢，首先考虑为转移。空腹6小时以下，静脉注射显像剂，平静休息60MMin后行胸部PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：扫及两锁骨下区未见肿大淋巴结或淋巴结浓聚。右肺癌化疗后，纵隔右移，右肺气体密度影消失，右侧胸腔代之以软组织及液性密度影，右肺支气管周围见不规则软组织密度影，侵及肺门、胸膜及纵隔，且与胸主动脉分界不清，PET示病变区域呈显著浓聚，最大SUV:22.0，较大浓聚截面约7.0CM×4.1CM大小。右胸膜多发不规则异常增厚伴放射性分布异常浓聚，最大SUV：13.0，较厚处约3.5CM。右侧胸腔积液。左肺多发小结节，较大者直径约0.4CM，未见明显高摄取。左肺门未见异常淋巴结浓聚。左胸膜光，未见胸腔积液。多个胸椎、右侧多发后肋、左4侧肋、右肩胛骨骨质破坏并放射性分布异常浓聚。扫及肝脾未见放射性分布异常浓聚灶。两肾下腺未见异常结节及放射性分布浓聚灶。</t>
+          <t>右肺癌化疗后复查：1、右肺门区不规则高代谢肿块，且侵及肺门、胸膜及纵隔，并与胸主动脉管壁分界不清。右肺不张。2、右胸膜转移；右侧胸腔积液。3、多发骨转移。4、左肺多发小结节，未见明显高代谢，首先考虑为转移。空腹6小时以下，静脉注射显像剂，平静休息60MMin后行胸部PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：扫及两锁骨下区未见肿大淋巴结或淋巴结浓聚。右肺癌化疗后，纵隔右移，右肺气体密度影消失，右侧胸腔代之以软组织及液性密度影，右肺支气管周围见不规则软组织密度影，侵及肺门、胸膜及纵隔，且与胸主动脉分界不清，PET示病变区域呈显著浓聚，最大SUV：22.0，较大浓聚截面约7.0CM×4.1CM大小。右胸膜多发不规则异常增厚伴放射性分布异常浓聚，最大SUV：13.0，较厚处约3.5CM。右侧胸腔积液。左肺多发小结节，较大者直径约0.4CM，未见明显高摄取。左肺门未见异常淋巴结浓聚。左胸膜光，未见胸腔积液。多个胸椎、右侧多发后肋、左4侧肋、右肩胛骨骨质破坏并放射性分布异常浓聚。扫及肝脾未见放射性分布异常浓聚灶。两肾下腺未见异常结节及放射性分布浓聚灶。</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -11326,7 +11326,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>胸肋SPECT/CT显像结合全身骨平面显像：新增第9胸椎转移可能；左侧第6肋腋段病变显像剂摄取较前减低；第4腰椎压缩性改变可能。显像方法：&lt;?xml:namespaceprefix=ons="urn:schemas-microsoft-com:office:office"/&gt;静脉注射99MMTc-MDP约3小时后，患者取仰卧位，ANT、POST位采集全身骨骼平面影像。全身骨骼平面显像完毕后，患者取仰卧位，SPECT/CT采集上胸椎至腰椎断层影像，经计算机处理得到横断面、矢状面、冠状面影像。与2017-9-6片比较。影像所见：全身骨骼显影清晰，显像剂分布不均匀对称，左侧第6肋腋段显像剂摄取较前减低，第9胸椎和第4腰椎显像剂摄取较前增浓；余处骨骼未见明显显像剂异常浓聚或稀疏缺损表现。　SPECT/CT融合图像示左侧第6肋腋段骨质密度较前增高，骨皮质走行扭曲，显像剂摄取较前减低，最大SUV值约为48.8；第9胸椎椎体右侧骨质密度欠均匀伴显像剂浓聚；第4腰椎椎体下缘局部凹陷伴显像剂浓聚；余处骨骼未见明显骨质破坏吸收征象或显像剂异常分布。</t>
+          <t>胸肋SPECT/CT显像结合全身骨平面显像：新增第9胸椎转移可能；左侧第6肋腋段病变显像剂摄取较前减低；第4腰椎压缩性改变可能。显像方法：&lt;?xml：namespaceprefix=ons="urn：schemas-microsoft-com：office：office"/&gt;静脉注射99MMTc-MDP约3小时后，患者取仰卧位，ANT、POST位采集全身骨骼平面影像。全身骨骼平面显像完毕后，患者取仰卧位，SPECT/CT采集上胸椎至腰椎断层影像，经计算机处理得到横断面、矢状面、冠状面影像。与2017-9-6片比较。影像所见：全身骨骼显影清晰，显像剂分布不均匀对称，左侧第6肋腋段显像剂摄取较前减低，第9胸椎和第4腰椎显像剂摄取较前增浓；余处骨骼未见明显显像剂异常浓聚或稀疏缺损表现。　SPECT/CT融合图像示左侧第6肋腋段骨质密度较前增高，骨皮质走行扭曲，显像剂摄取较前减低，最大SUV值约为48.8；第9胸椎椎体右侧骨质密度欠均匀伴显像剂浓聚；第4腰椎椎体下缘局部凹陷伴显像剂浓聚；余处骨骼未见明显骨质破坏吸收征象或显像剂异常分布。</t>
         </is>
       </c>
       <c r="B616" t="inlineStr"/>
@@ -11462,7 +11462,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>主动脉瓣钙化常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,32,20-37,右房内径,39,19-40,右室舒张末内径,44,35-56,右室收缩末内径,28,23-35,室间隔厚度,10,6-11,右室后壁厚度,9,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。,3、主动脉不增宽，主动脉瓣钙化，开放不受限，彩色多普勒未测及主动脉瓣反流。,4、左房室不大，肺动脉不增宽，,连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约37MMHg,。,三、,右心功能测定：,LVEF：66%;,二尖瓣血流图示E/A,&amp;lt;,1;DT:215MMs,四、组织多普勒测定：,DTI示S波峰值:10.2CM/s;E'/A',&amp;lt;,1,五、结论：,</t>
+          <t>主动脉瓣钙化常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，32，20-37，右房内径，39，19-40，右室舒张末内径，44，35-56，右室收缩末内径，28，23-35，室间隔厚度，10，6-11，右室后壁厚度，9，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣钙化，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约37MMHg，。，三、，右心功能测定：，LVEF：66%；，二尖瓣血流图示E/A，&amp;lt；，1；DT：215MMs，四、组织多普勒测定：，DTI示S波峰值：10.2CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
         </is>
       </c>
       <c r="B625" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>两肺转移瘤，请结合临床对比原片。纵隔淋巴结显示。两侧胸膜限局性增厚。心包囊肿可能大，请结合临床。右侧第7肋骨转移可能大，请结合临床。右侧乳腺术后。扫描显示胸廓对称，两肺多发大小不等结节影、团片影，部分呈分叶状，较大团片位于左肺上叶，范围约为2.7CM×2.1CM，CT值约为39HU，增强扫描CT值约为85HU，边界模糊，可见小毛刺及胸膜凹陷征，两肺另见索条影。各级支气管通畅，无扩张与狭窄。两侧肺门不大，纵隔居中，纵隔内淋巴结显示。心脏大小正常。心包左侧见囊性低密度影，CT值为10Hu。两侧胸膜局部增厚,胸膜上可见多发小结节影。右侧第7肋骨骨质破坏，骨皮质不连续。右侧乳腺缺如。</t>
+          <t>两肺转移瘤，请结合临床对比原片。纵隔淋巴结显示。两侧胸膜限局性增厚。心包囊肿可能大，请结合临床。右侧第7肋骨转移可能大，请结合临床。右侧乳腺术后。扫描显示胸廓对称，两肺多发大小不等结节影、团片影，部分呈分叶状，较大团片位于左肺上叶，范围约为2.7CM×2.1CM，CT值约为39HU，增强扫描CT值约为85HU，边界模糊，可见小毛刺及胸膜凹陷征，两肺另见索条影。各级支气管通畅，无扩张与狭窄。两侧肺门不大，纵隔居中，纵隔内淋巴结显示。心脏大小正常。心包左侧见囊性低密度影，CT值为10Hu。两侧胸膜局部增厚，胸膜上可见多发小结节影。右侧第7肋骨骨质破坏，骨皮质不连续。右侧乳腺缺如。</t>
         </is>
       </c>
       <c r="B653" t="inlineStr"/>
@@ -11992,7 +11992,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>右房增大(心脏彩色多普勒超声+右心功能测定+TDI),常规检查切面观,：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、M型及血流多普勒超声测量：,名称,测量值,正常值,主动脉根部内径,33,20-37MM,右房内径,43,19-40MM,右室舒张末内径,51,35-56MM,右室收缩末内径,33,23-35MM,室间隔厚度,10,6-11MM,右室后壁厚度,9,6-11MM,肺动脉收缩压,35,&amp;lt;40MMHg,医学图像序列2行2列,宽：110,二、右心功能测定及组织多普勒显像测量:,右室射血分数（LVEF）：,64,%,二尖瓣血流图：,E、A两峰,，E/A,&amp;lt;,1；DT：,197,ms,DTI示S波峰值：,10.8,cm/s；E/A,&amp;lt;,1,三、普通二维超声心动图和各心腔及大血管血流显像：,1、右房内径,增大,，右室内径,正常,，右室壁厚度,正常,，静息状态上右室各节段收缩活动未见异常。,2、二尖瓣,不增厚,，开放不受限，彩色多普勒,示轻微,二尖瓣反流。,3、主动脉窦部,不增宽,，升主动脉,不增宽,，主动脉瓣,不增厚,，,开放不受限,，彩色多普勒,未测及,主动脉瓣反流。,4、左房内径,正常,，左室内径,正常,，左室收缩活动未见异常。肺动脉,不增宽,，三尖瓣不增厚，开放不受限，彩色多普勒,示轻微,三尖瓣反流。,5、心包腔内,未见明显积液,。,四、结论：,</t>
+          <t>右房增大(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，33，20-37MM，右房内径，43，19-40MM，右室舒张末内径，51，35-56MM，右室收缩末内径，33，23-35MM，室间隔厚度，10，6-11MM，右室后壁厚度，9，6-11MM，肺动脉收缩压，35，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，64，%，二尖瓣血流图：，E、A两峰，，E/A，&amp;lt；，1；DT：，197，ms，DTI示S波峰值：，10.8，cm/s；E/A，&amp;lt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，增大，，右室内径，正常，，右室壁厚度，正常，，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，，开放不受限，彩色多普勒，示轻微，二尖瓣反流。，3、主动脉窦部，不增宽，，升主动脉，不增宽，，主动脉瓣，不增厚，，，开放不受限，，彩色多普勒，未测及，主动脉瓣反流。，4、左房内径，正常，，左室内径，正常，，左室收缩活动未见异常。肺动脉，不增宽，，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
         </is>
       </c>
       <c r="B661" t="inlineStr"/>
@@ -12135,7 +12135,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>SPECT/CT显像结合全身骨平面显像：右侧髂骨不伴显像剂浓聚的高密度灶，考虑为良性病变可能，请短期随访；所示胸腰椎及两侧骶髂关节退行性变。显像方法：&lt;?xml:namespaceprefix=ons="urn:schemas-microsoft-com:office:office"/&gt;静脉注射99MMTc-MDP约3小时后，患者取仰卧位，ANT、POST位采集全身骨骼平面影像。全身骨骼平面显像完毕后，患者取仰卧位，SPECT/CT采集中上段胸肋至骶髂关节断层影像，经计算机处理得到横断面、矢状面、冠状面影像。影像所见：全身骨骼显影清晰，显像剂分布不均匀对称，胸椎及左侧骶髂部显像剂略浓聚；余处骨骼未见明显显像剂异常分布。　　SPECT/CT融合图像示：所示中上段胸椎及腰椎顺列，生理曲度存在，部分椎体边缘及椎小关节骨质增生，伴显像剂略浓聚；所示两侧肋骨在位，走行正常；两侧骶髂关节在位，组成骨缘骨质增生，伴显像剂略浓聚，左侧略显著；右侧髂骨见高密度灶，不伴显像剂异常浓聚；余所示骨骼未见明显骨质吸收破坏征象或显像剂异常分布。</t>
+          <t>SPECT/CT显像结合全身骨平面显像：右侧髂骨不伴显像剂浓聚的高密度灶，考虑为良性病变可能，请短期随访；所示胸腰椎及两侧骶髂关节退行性变。显像方法：&lt;?xml：namespaceprefix=ons="urn：schemas-microsoft-com：office：office"/&gt;静脉注射99MMTc-MDP约3小时后，患者取仰卧位，ANT、POST位采集全身骨骼平面影像。全身骨骼平面显像完毕后，患者取仰卧位，SPECT/CT采集中上段胸肋至骶髂关节断层影像，经计算机处理得到横断面、矢状面、冠状面影像。影像所见：全身骨骼显影清晰，显像剂分布不均匀对称，胸椎及左侧骶髂部显像剂略浓聚；余处骨骼未见明显显像剂异常分布。　　SPECT/CT融合图像示：所示中上段胸椎及腰椎顺列，生理曲度存在，部分椎体边缘及椎小关节骨质增生，伴显像剂略浓聚；所示两侧肋骨在位，走行正常；两侧骶髂关节在位，组成骨缘骨质增生，伴显像剂略浓聚，左侧略显著；右侧髂骨见高密度灶，不伴显像剂异常浓聚；余所示骨骼未见明显骨质吸收破坏征象或显像剂异常分布。</t>
         </is>
       </c>
       <c r="B671" t="inlineStr"/>
@@ -12201,7 +12201,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>静息状态上超声心动图未见异常(心脏彩色多普勒超声+右心功能测定+TDI),常规检查切面观,：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、M型及血流多普勒超声测量：,名称,测量值,正常值,主动脉根部内径,33,20-37MM,右房内径,37,19-40MM,右室舒张末内径,47,35-56MM,右室收缩末内径,29,23-35MM,室间隔厚度,9,6-11MM,右室后壁厚度,9,6-11MM,肺动脉收缩压,30,&amp;lt;40MMHg,医学图像序列2行2列,宽：110,二、右心功能测定及组织多普勒显像测量:,右室射血分数（LVEF）：,69,%,二尖瓣血流图：,E、A两峰,，E/A,=,1；DT：,222,ms,DTI示S波峰值：,12.8,cm/s；E/A,&amp;lt;,1,三、普通二维超声心动图和各心腔及大血管血流显像：,1、右房内径,正常,，右室内径,正常,，右室壁厚度,正常,，静息状态上右室各节段收缩活动未见异常。,2、二尖瓣,不增厚,，开放不受限，彩色多普勒,未测及,二尖瓣反流。,3、主动脉窦部,不增宽,，升主动脉,不增宽,，主动脉瓣,不增厚,，,开放不受限,，彩色多普勒,未测及,主动脉瓣反流。,4、左房内径,正常,，左室内径,正常,，左室收缩活动未见异常。肺动脉,不增宽,，三尖瓣不增厚，开放不受限，彩色多普勒,示轻微,三尖瓣反流。,5、心包腔内,未见明显积液,。,四、结论：,</t>
+          <t>静息状态上超声心动图未见异常(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，33，20-37MM，右房内径，37，19-40MM，右室舒张末内径，47，35-56MM，右室收缩末内径，29，23-35MM，室间隔厚度，9，6-11MM，右室后壁厚度，9，6-11MM，肺动脉收缩压，30，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，69，%，二尖瓣血流图：，E、A两峰，，E/A，=，1；DT：，222，ms，DTI示S波峰值：，12.8，cm/s；E/A，&amp;lt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，正常，，右室内径，正常，，右室壁厚度，正常，，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，，开放不受限，彩色多普勒，未测及，二尖瓣反流。，3、主动脉窦部，不增宽，，升主动脉，不增宽，，主动脉瓣，不增厚，，，开放不受限，，彩色多普勒，未测及，主动脉瓣反流。，4、左房内径，正常，，左室内径，正常，，左室收缩活动未见异常。肺动脉，不增宽，，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
         </is>
       </c>
       <c r="B675" t="inlineStr"/>
@@ -12257,7 +12257,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>两侧附件增大，MT可能,右侧附件区囊腺瘤机会大；子宫多发小肌瘤，建议MRI检查；后腹膜及肝胃间隙、髂血管旁多发肿大淋巴结，左侧腹膜增厚，左侧肾后筋膜结节（种植转移可能）；肝微小囊肿，脾脉管瘤可能大，两肾囊肿；胆结石；左侧胸腔积液伴左肺压迫性不张。两侧附件区见软组织影，增强后轻中度强化；右侧附件区见囊实性灶，大小约32MM×46MM，肝胃间隙及后腹膜、髂血管旁见多发肿大淋巴结，左侧肾后筋膜见软组织影，直径约12.5MM；左侧腹膜增厚；肝脏表面光滑，各叶比例匀称，肝左叶见无强化小囊性灶，肝内血管未见狭窄或充盈缺损；脾脏未见肿大，内见多发等低密度小结节灶，直径&amp;lt;5MM，动脉期边界较清，门脉期病灶似有逐渐填充；胆管未见扩张；两肾见无强化小囊性灶，胰腺无殊；腹盆腔内无积液。子宫形态欠规则，见多枚结节状等低密度灶，直径约25MM，部分结节状内见斑片状钙化灶，增强后环状或斑片状明显强化，肝周见结肠影，左侧大量胸腔积液伴左肺压迫性不张。</t>
+          <t>两侧附件增大，MT可能，右侧附件区囊腺瘤机会大；子宫多发小肌瘤，建议MRI检查；后腹膜及肝胃间隙、髂血管旁多发肿大淋巴结，左侧腹膜增厚，左侧肾后筋膜结节（种植转移可能）；肝微小囊肿，脾脉管瘤可能大，两肾囊肿；胆结石；左侧胸腔积液伴左肺压迫性不张。两侧附件区见软组织影，增强后轻中度强化；右侧附件区见囊实性灶，大小约32MM×46MM，肝胃间隙及后腹膜、髂血管旁见多发肿大淋巴结，左侧肾后筋膜见软组织影，直径约12.5MM；左侧腹膜增厚；肝脏表面光滑，各叶比例匀称，肝左叶见无强化小囊性灶，肝内血管未见狭窄或充盈缺损；脾脏未见肿大，内见多发等低密度小结节灶，直径&amp;lt；5MM，动脉期边界较清，门脉期病灶似有逐渐填充；胆管未见扩张；两肾见无强化小囊性灶，胰腺无殊；腹盆腔内无积液。子宫形态欠规则，见多枚结节状等低密度灶，直径约25MM，部分结节状内见斑片状钙化灶，增强后环状或斑片状明显强化，肝周见结肠影，左侧大量胸腔积液伴左肺压迫性不张。</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -12318,7 +12318,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>1.右房增大伴轻度二尖瓣反流2.室间隔基底段增厚(心脏彩色多普勒超声+右心功能测定+TDI),常规检查切面观,：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、M型及血流多普勒超声测量：,名称,测量值,正常值,主动脉根部内径,33,20-37MM,右房内径,45,19-40MM,右室舒张末内径,43,35-56MM,右室收缩末内径,28,23-35MM,室间隔厚度,14,6-11MM,右室后壁厚度,10,6-11MM,肺动脉收缩压,38,&amp;lt;40MMHg,医学图像序列2行2列,宽：110,二、右心功能测定及组织多普勒显像测量:,右室射血分数（LVEF）：,64,%,二尖瓣血流图：,E、A两峰,，E/A,&amp;lt;,1；DT：,192,ms,DTI示S波峰值：,7,cm/s；E/A,&amp;lt;,1,三、普通二维超声心动图和各心腔及大血管血流显像：,1、右房内径,增大,，右室内径,正常,，室间隔基底段增厚,余右室壁厚度,正常,，静息状态上右室各节段收缩活动未见异常。,2、二尖瓣,不增厚,，开放不受限，彩色多普勒,示轻度,二尖瓣反流。,3、主动脉窦部,不增宽,，升主动脉,不增宽,，主动脉瓣,不增厚,，,开放不受限,，彩色多普勒,示轻微,主动脉瓣反流。,4、左房内径,正常,，左室内径,正常,，左室收缩活动未见异常。肺动脉,不增宽,，三尖瓣不增厚，开放不受限，彩色多普勒,示轻度,三尖瓣反流。,5、心包腔内,未见明显积液,。,四、结论：,</t>
+          <t>1.右房增大伴轻度二尖瓣反流2.室间隔基底段增厚(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，33，20-37MM，右房内径，45，19-40MM，右室舒张末内径，43，35-56MM，右室收缩末内径，28，23-35MM，室间隔厚度，14，6-11MM，右室后壁厚度，10，6-11MM，肺动脉收缩压，38，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，64，%，二尖瓣血流图：，E、A两峰，，E/A，&amp;lt；，1；DT：，192，ms，DTI示S波峰值：，7，cm/s；E/A，&amp;lt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，增大，，右室内径，正常，，室间隔基底段增厚，余右室壁厚度，正常，，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，，开放不受限，彩色多普勒，示轻度，二尖瓣反流。，3、主动脉窦部，不增宽，，升主动脉，不增宽，，主动脉瓣，不增厚，，，开放不受限，，彩色多普勒，示轻微，主动脉瓣反流。，4、左房内径，正常，，左室内径，正常，，左室收缩活动未见异常。肺动脉，不增宽，，三尖瓣不增厚，开放不受限，彩色多普勒，示轻度，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
         </is>
       </c>
       <c r="B683" t="inlineStr"/>
@@ -12436,7 +12436,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>右房增大常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,36,20-37,右房内径,42,19-40,右室舒张末内径,42,35-56,右室收缩末内径,27,23-35,室间隔厚度,10,6-11,右室后壁厚度,9,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房增大，右室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。,3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。,4、左房室不大，肺动脉不增宽，肺动脉血流图未见异常。,三、,右心功能测定：,LVEF：63%;,二尖瓣血流图示E/A,&amp;lt;,1;DT:120MMs,四、组织多普勒测定：,DTI示S波峰值:16CM/s;E'/A',&amp;lt;,1,五、结论：,</t>
+          <t>右房增大常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，36，20-37，右房内径，42，19-40，右室舒张末内径，42，35-56，右室收缩末内径，27，23-35，室间隔厚度，10，6-11，右室后壁厚度，9，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房增大，右室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，肺动脉血流图未见异常。，三、，右心功能测定：，LVEF：63%；，二尖瓣血流图示E/A，&amp;lt；，1；DT：120MMs，四、组织多普勒测定：，DTI示S波峰值：16CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
         </is>
       </c>
       <c r="B691" t="inlineStr"/>
@@ -12454,7 +12454,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>升主动脉稍增宽常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,37,20-37,右房内径,32,19-40,右室舒张末内径,41,35-56,右室收缩末内径,28,23-35,室间隔厚度,8,6-11,右室后壁厚度,8,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。,3、主动脉窦部内径正常下限，升主动脉增宽为38MM，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。,4、左房室不大，肺动脉不增宽，,连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约22MMHg,。,三、,右心功能测定：,LVEF:64%；二尖瓣血流图示E/A,&amp;gt;,1;DT:100MMs,四、组织多普勒测定：,DTI示S波峰值:14.8CM/s;E'/A',&amp;lt;,1,五、结论：,</t>
+          <t>升主动脉稍增宽常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，37，20-37，右房内径，32，19-40，右室舒张末内径，41，35-56，右室收缩末内径，28，23-35，室间隔厚度，8，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。，3、主动脉窦部内径正常下限，升主动脉增宽为38MM，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约22MMHg，。，三、，右心功能测定：，LVEF：64%；二尖瓣血流图示E/A，&amp;gt；，1；DT：100MMs，四、组织多普勒测定：，DTI示S波峰值：14.8CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
         </is>
       </c>
       <c r="B693" t="inlineStr"/>
@@ -12726,7 +12726,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>SPECT/CT显像结合全身骨平面显像：未见明显肿瘤转移征象；左侧第8后肋陈旧性骨折灶放射性摄取较前略增浓；胸椎退行性变。显像方法：&lt;?xml:namespaceprefix=ons="urn:schemas-microsoft-com:office:office"/&gt;静脉注射99MMTc-MDP约3小时后，患者取仰卧位，ANT、POST位采集全身骨骼平面影像。全身骨骼平面显像完毕后，患者取仰卧位，SPECT/CT采集胸肋部断层影像，经计算机处理得到横断面、矢状面、冠状面影像。影像所见：全身骨骼显影清晰，放射性分布不均匀对称，与2016-11-17本院图像比较，左侧第8后肋病灶放射性摄取较前略增浓；颅骨“帽状”放射性摄取与前相仿，考虑为骨质疏松所致；余处骨骼未见明显放射性异常浓聚或稀疏缺损表现。　　SPECT/CT融合图像示左侧第8后肋局部骨皮质密度略增高、走形扭曲伴放射性浓聚，与2016-9-1本院图像比较，放射性摄取较前略增浓，其余两侧肋骨形态完整；胸腰椎顺列，生理曲度存在，部分椎体边缘及椎小关节轻度增生增生伴放射性略浓聚，与前片相仿；其余骨骼未见放射性异常浓聚或骨质破坏吸收征象。</t>
+          <t>SPECT/CT显像结合全身骨平面显像：未见明显肿瘤转移征象；左侧第8后肋陈旧性骨折灶放射性摄取较前略增浓；胸椎退行性变。显像方法：&lt;?xml：namespaceprefix=ons="urn：schemas-microsoft-com：office：office"/&gt;静脉注射99MMTc-MDP约3小时后，患者取仰卧位，ANT、POST位采集全身骨骼平面影像。全身骨骼平面显像完毕后，患者取仰卧位，SPECT/CT采集胸肋部断层影像，经计算机处理得到横断面、矢状面、冠状面影像。影像所见：全身骨骼显影清晰，放射性分布不均匀对称，与2016-11-17本院图像比较，左侧第8后肋病灶放射性摄取较前略增浓；颅骨“帽状”放射性摄取与前相仿，考虑为骨质疏松所致；余处骨骼未见明显放射性异常浓聚或稀疏缺损表现。　　SPECT/CT融合图像示左侧第8后肋局部骨皮质密度略增高、走形扭曲伴放射性浓聚，与2016-9-1本院图像比较，放射性摄取较前略增浓，其余两侧肋骨形态完整；胸腰椎顺列，生理曲度存在，部分椎体边缘及椎小关节轻度增生增生伴放射性略浓聚，与前片相仿；其余骨骼未见放射性异常浓聚或骨质破坏吸收征象。</t>
         </is>
       </c>
       <c r="B710" t="inlineStr"/>
@@ -12761,7 +12761,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>肺癌放化疗后复查，对比2012-7-16CT:左上肺中央型肺癌并左上肺不张，范围较前缩小。两肺小结节，较前未见明显变化。左肺散在病灶，考虑炎症，较前无明显变化。右锁骨下窝、纵隔及左肺门多发淋巴结，较前未见明显变化。左侧胸腔少量积液，较前减少。甲状腺左叶病灶，考虑结节性甲状腺肿可能性大。下腹部未见占位性病变。胸10椎体稍高密度影，大致同前，可疑转移瘤。肺癌放化疗后复查，对比2012-7-16CT:左肺上叶支气管截断，左上肺不张，较前好转；近肺门区见团块状软组织肿物，边界不清，与不张肺组织分界不清，肿物范围较前缩小。左中下肺代偿尚可，肺内见边界不清的片状影，范围较前无明显变化。余两肺各叶见多个粟粒样小结节，孤立散在，最大者直径约4MM，边界尚清，较前未见明显变化。右上肺见一小致密影。右侧锁骨下窝、最下纵隔、左下上气管旁、主肺动脉窗、主动脉旁、隆突上及左肺门见多个大小不等的淋巴结，部分边界不清，最大约13MM×19MM，较前未见明显变化。左侧胸腔少量积液，右侧胸腔未见积液。两侧胸膜稍增厚。扫描范围甲状腺左叶见小结节状低密度影，大小约为5MM×6MM，边界欠清，增强后轻度强化。肝脏形态、大小未见异常，轮廓光整，肝内未见异常密度灶。肝内外胆管无扩张，内未见异常密度灶。胆囊不大，壁不厚，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾不大，密度均匀。胰腺形态、大小及密度未见异常。所示两肾及肾下腺未见异常。腹主动脉旁、膈脚后未见肿大淋巴结。胸10椎体右侧份见一类圆形稍高密度影，边界不清，直径8MM，余扫描范围未见明显骨质破坏。</t>
+          <t>肺癌放化疗后复查，对比2012-7-16CT：左上肺中央型肺癌并左上肺不张，范围较前缩小。两肺小结节，较前未见明显变化。左肺散在病灶，考虑炎症，较前无明显变化。右锁骨下窝、纵隔及左肺门多发淋巴结，较前未见明显变化。左侧胸腔少量积液，较前减少。甲状腺左叶病灶，考虑结节性甲状腺肿可能性大。下腹部未见占位性病变。胸10椎体稍高密度影，大致同前，可疑转移瘤。肺癌放化疗后复查，对比2012-7-16CT：左肺上叶支气管截断，左上肺不张，较前好转；近肺门区见团块状软组织肿物，边界不清，与不张肺组织分界不清，肿物范围较前缩小。左中下肺代偿尚可，肺内见边界不清的片状影，范围较前无明显变化。余两肺各叶见多个粟粒样小结节，孤立散在，最大者直径约4MM，边界尚清，较前未见明显变化。右上肺见一小致密影。右侧锁骨下窝、最下纵隔、左下上气管旁、主肺动脉窗、主动脉旁、隆突上及左肺门见多个大小不等的淋巴结，部分边界不清，最大约13MM×19MM，较前未见明显变化。左侧胸腔少量积液，右侧胸腔未见积液。两侧胸膜稍增厚。扫描范围甲状腺左叶见小结节状低密度影，大小约为5MM×6MM，边界欠清，增强后轻度强化。肝脏形态、大小未见异常，轮廓光整，肝内未见异常密度灶。肝内外胆管无扩张，内未见异常密度灶。胆囊不大，壁不厚，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾不大，密度均匀。胰腺形态、大小及密度未见异常。所示两肾及肾下腺未见异常。腹主动脉旁、膈脚后未见肿大淋巴结。胸10椎体右侧份见一类圆形稍高密度影，边界不清，直径8MM，余扫描范围未见明显骨质破坏。</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -12870,7 +12870,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>静息状态上超声心动图未见异常常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,34,20-37,右房内径,38,19-40,右室舒张末内径,41,35-56,右室收缩末内径,29,23-35,室间隔厚度,8,6-11,右室后壁厚度,8,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。,3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒测及轻微主动脉瓣反流。,4、左房室不大，肺动脉不增宽，,连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约38MMHg,。,三、,右心功能测定：,LVEF：65%;,二尖瓣血流图示E/A,&amp;lt;,1;DT:127MMs,四、组织多普勒测定：,DTI示S波峰值:20.6CM/s;E'/A',&amp;lt;,1,五、结论：,</t>
+          <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，34，20-37，右房内径，38，19-40，右室舒张末内径，41，35-56，右室收缩末内径，29，23-35，室间隔厚度，8，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒测及轻微主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约38MMHg，。，三、，右心功能测定：，LVEF：65%；，二尖瓣血流图示E/A，&amp;lt；，1；DT：127MMs，四、组织多普勒测定：，DTI示S波峰值：20.6CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
         </is>
       </c>
       <c r="B720" t="inlineStr"/>
@@ -13198,7 +13198,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>主动脉窦部及升主动脉增宽(心脏彩色多普勒超声+右心功能测定+TDI),常规检查切面观,：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、M型及血流多普勒超声测量：,名称,测量值,正常值,主动脉根部内径,39,20-37MM,右房内径,30,19-40MM,右室舒张末内径,43,35-56MM,右室收缩末内径,28,23-35MM,室间隔厚度,7,6-11MM,右室后壁厚度,8,6-11MM,肺动脉收缩压,35,&amp;lt;40MMHg,医学图像序列2行2列,宽：110,二、右心功能测定及组织多普勒显像测量:,右室射血分数（LVEF）：,64,%,二尖瓣血流图：,E、A两峰,，E/A,&amp;gt;,1；DT：,176,ms,DTI示S波峰值：,7.9,cm/s；E/A,&amp;gt;,1,三、普通二维超声心动图和各心腔及大血管血流显像：,1、右房内径,正常,，右室内径,正常,，右室壁厚度,正常,，静息状态上右室各节段收缩活动未见异常。,2、二尖瓣,不增厚,，开放不受限，彩色多普勒,示轻微,二尖瓣反流。,3、主动脉窦部,增宽为39MM,，升主动脉,增宽为41MM,，主动脉瓣,不增厚,，,开放不受限,，彩色多普勒,未测及,主动脉瓣反流。,4、左房内径,正常,，左室内径,正常,，肺动脉,不增宽,，三尖瓣不增厚，开放不受限，彩色多普勒,示轻微,三尖瓣反流。,5、心包腔内,未见明显积液,。,四、结论：,</t>
+          <t>主动脉窦部及升主动脉增宽(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，39，20-37MM，右房内径，30，19-40MM，右室舒张末内径，43，35-56MM，右室收缩末内径，28，23-35MM，室间隔厚度，7，6-11MM，右室后壁厚度，8，6-11MM，肺动脉收缩压，35，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，64，%，二尖瓣血流图：，E、A两峰，，E/A，&amp;gt；，1；DT：，176，ms，DTI示S波峰值：，7.9，cm/s；E/A，&amp;gt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，正常，，右室内径，正常，，右室壁厚度，正常，，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，，开放不受限，彩色多普勒，示轻微，二尖瓣反流。，3、主动脉窦部，增宽为39MM，，升主动脉，增宽为41MM，，主动脉瓣，不增厚，，，开放不受限，，彩色多普勒，未测及，主动脉瓣反流。，4、左房内径，正常，，左室内径，正常，，肺动脉，不增宽，，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
         </is>
       </c>
       <c r="B741" t="inlineStr"/>
@@ -13207,7 +13207,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>肝囊肿。左侧胸腔少量积液（陈旧性）。胆囊、脾脏、胰腺、两肾、膀胱未见明显占位病变声像。两侧输尿管未见明确扩张。左侧附件区囊性灶，考虑卵巢囊肿。子宫、左侧附件区未见明显占位病变声像。肝脏大小、形态正常，包膜光滑，实质回声均匀，血管走行清晰、自然，肝内胆管不扩张，门静脉内径11MM，肝S5门脉旁见一个无回声灶，大小约25MM×13MM，类圆形，边界清，内部透声良好，后方回声增强。CDFI：肝动脉、门静脉血流通畅，为向肝血流信号，充盈良好，肝内未见明确异常血流信号。门静脉最大血流速度约15CM/s。胆囊大小形态正常，囊壁不厚，胆囊内未见明显异常回声。脾脏大小形态正常，包膜光滑，实质回声均匀，未见明显异常回声。胰腺大小形态正常，实质回声均匀，未见明显异常回声。两肾大小形态正常，实质回声均匀，未见明显异常回声。CDFI：两肾血流呈珊瑚状，未见明确异常血流信号。两侧输尿管未见明确扩张。膀胱充盈良好，膀胱壁光滑，不厚，膀胱腔内未见明确肿物回声。子宫大小、形态正常，大小约41MM×40MM×20MM，前位，包膜光滑，宫壁肌层回声均匀，宫腔线清晰，居中。右侧卵巢显示清晰，左侧附件区见一个无回声团，大小约28MM×18MM，椭圆形，边界清，内不透声良好，后方回声增强。CDFI:子宫、两附件未见明确异常血流信号。左侧胸腔探及少量积液，内部透声不佳，宽约35MM。</t>
+          <t>肝囊肿。左侧胸腔少量积液（陈旧性）。胆囊、脾脏、胰腺、两肾、膀胱未见明显占位病变声像。两侧输尿管未见明确扩张。左侧附件区囊性灶，考虑卵巢囊肿。子宫、左侧附件区未见明显占位病变声像。肝脏大小、形态正常，包膜光滑，实质回声均匀，血管走行清晰、自然，肝内胆管不扩张，门静脉内径11MM，肝S5门脉旁见一个无回声灶，大小约25MM×13MM，类圆形，边界清，内部透声良好，后方回声增强。CDFI：肝动脉、门静脉血流通畅，为向肝血流信号，充盈良好，肝内未见明确异常血流信号。门静脉最大血流速度约15CM/s。胆囊大小形态正常，囊壁不厚，胆囊内未见明显异常回声。脾脏大小形态正常，包膜光滑，实质回声均匀，未见明显异常回声。胰腺大小形态正常，实质回声均匀，未见明显异常回声。两肾大小形态正常，实质回声均匀，未见明显异常回声。CDFI：两肾血流呈珊瑚状，未见明确异常血流信号。两侧输尿管未见明确扩张。膀胱充盈良好，膀胱壁光滑，不厚，膀胱腔内未见明确肿物回声。子宫大小、形态正常，大小约41MM×40MM×20MM，前位，包膜光滑，宫壁肌层回声均匀，宫腔线清晰，居中。右侧卵巢显示清晰，左侧附件区见一个无回声团，大小约28MM×18MM，椭圆形，边界清，内不透声良好，后方回声增强。CDFI：子宫、两附件未见明确异常血流信号。左侧胸腔探及少量积液，内部透声不佳，宽约35MM。</t>
         </is>
       </c>
       <c r="B742" t="inlineStr"/>
@@ -13334,7 +13334,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>心内结构及血流未见异常静息状态上右室整体收缩功能正常二维测值（mm）：主动脉内径：21-28-24右房内径：38升主动脉：31室间隔厚度：9右室舒末内径：45右室缩末内径：24右室后壁厚度：8左室内径：18肺动脉内径：20Doppler测值:各瓣口前向血流峰速度（m/s）二尖瓣：E峰0.6A峰0.8三尖瓣：E峰0.7A峰0.6主动脉瓣：1.3肺动脉瓣：1.0心功能测值：右室舒末容积EDV：65(ml)右室缩末容积ESV：20(ml)每搏量SV：45(ml)射血分数EF：69%右房内径正常高值，右室内径在正常范围，右室各壁向心运动良好，未见节段性运动异常。各瓣膜开放良好，各瓣口前向血流速度在正常范围。二、三尖瓣探及微量返流。心包腔未见液性暗区。</t>
+          <t>心内结构及血流未见异常静息状态上右室整体收缩功能正常二维测值（mm）：主动脉内径：21-28-24右房内径：38升主动脉：31室间隔厚度：9右室舒末内径：45右室缩末内径：24右室后壁厚度：8左室内径：18肺动脉内径：20Doppler测值：各瓣口前向血流峰速度（m/s）二尖瓣：E峰0.6A峰0.8三尖瓣：E峰0.7A峰0.6主动脉瓣：1.3肺动脉瓣：1.0心功能测值：右室舒末容积EDV：65(ml)右室缩末容积ESV：20(ml)每搏量SV：45(ml)射血分数EF：69%右房内径正常高值，右室内径在正常范围，右室各壁向心运动良好，未见节段性运动异常。各瓣膜开放良好，各瓣口前向血流速度在正常范围。二、三尖瓣探及微量返流。心包腔未见液性暗区。</t>
         </is>
       </c>
       <c r="B751" t="inlineStr"/>
@@ -13695,7 +13695,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>食管癌放化疗后，对比2016-4-7CT：颈段及部分胸下段局限性增厚，较前稍缩小，强化程度减退。左侧气管食管沟肿大淋巴结，考虑转移，较前稍缩小。两肺下叶纵隔旁新见斑片灶，考虑放射性炎症可能大。下腹部未见明确病变。两颈II区~V区数个小淋巴结，考虑反应性淋巴结可能大，大致同前。左侧下颌窦炎。食管癌放化疗后，对比2016-4-7CT：颈段及部分胸下段食管局限性管壁增厚，最厚约12MM,纵径约30MM，局部管腔狭窄，增强后较明显强化，较前缩小；病灶部分与气管后缘分界欠清楚，邻近左侧气管食管沟见肿大淋巴结，最大约12MM×14MM，与病灶分界不清，增强后较明显强化。两肺下叶纵隔旁新见少许斑片灶，边界欠清，余肺纹理清晰，肺内未见实质性病变。余纵隔及两肺门未见明确肿大淋巴结，气管及支气管分支通畅。两侧胸腔未见积液。两侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整。肝实质密度均匀，增强后未见异常强化，肝门区正常。门静脉主干及其分支未见异常。胆囊大小正常，其内未见结石，胆总管未见扩张，其内未见结石。胰腺、脾脏大小、形态正常，密度均匀，增强后未见异常强化灶。两肾及两肾下腺形态、大小、密度未见异常。胃右血管旁、腹腔干、腹主动脉未见明确肿大淋巴结。颈部结构清晰，各血管充盈良好。甲状腺两叶及峡部形态正常，密度均匀。喉咽腔形态正常，两侧真假声带未见增厚，前联合未见增厚，梨状窝对称。两侧颌上腺、腮腺大小形态正常，密度均匀。颈部肌群排列对称，密度均匀，肌间隙未见明显异常。两颈II区~V区见数个小淋巴结，最大约9MM×8MM，边界清，密度均匀，增强后均匀强化。扫描所见左侧下颌窦粘膜增厚。扫描所见骨质未见明确破坏征象。</t>
+          <t>食管癌放化疗后，对比2016-4-7CT：颈段及部分胸下段局限性增厚，较前稍缩小，强化程度减退。左侧气管食管沟肿大淋巴结，考虑转移，较前稍缩小。两肺下叶纵隔旁新见斑片灶，考虑放射性炎症可能大。下腹部未见明确病变。两颈II区~V区数个小淋巴结，考虑反应性淋巴结可能大，大致同前。左侧下颌窦炎。食管癌放化疗后，对比2016-4-7CT：颈段及部分胸下段食管局限性管壁增厚，最厚约12MM，纵径约30MM，局部管腔狭窄，增强后较明显强化，较前缩小；病灶部分与气管后缘分界欠清楚，邻近左侧气管食管沟见肿大淋巴结，最大约12MM×14MM，与病灶分界不清，增强后较明显强化。两肺下叶纵隔旁新见少许斑片灶，边界欠清，余肺纹理清晰，肺内未见实质性病变。余纵隔及两肺门未见明确肿大淋巴结，气管及支气管分支通畅。两侧胸腔未见积液。两侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整。肝实质密度均匀，增强后未见异常强化，肝门区正常。门静脉主干及其分支未见异常。胆囊大小正常，其内未见结石，胆总管未见扩张，其内未见结石。胰腺、脾脏大小、形态正常，密度均匀，增强后未见异常强化灶。两肾及两肾下腺形态、大小、密度未见异常。胃右血管旁、腹腔干、腹主动脉未见明确肿大淋巴结。颈部结构清晰，各血管充盈良好。甲状腺两叶及峡部形态正常，密度均匀。喉咽腔形态正常，两侧真假声带未见增厚，前联合未见增厚，梨状窝对称。两侧颌上腺、腮腺大小形态正常，密度均匀。颈部肌群排列对称，密度均匀，肌间隙未见明显异常。两颈II区~V区见数个小淋巴结，最大约9MM×8MM，边界清，密度均匀，增强后均匀强化。扫描所见左侧下颌窦粘膜增厚。扫描所见骨质未见明确破坏征象。</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -13787,7 +13787,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>轻度肺动脉高压常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,28,20-37,右房内径,32,19-40,右室舒张末内径,43,35-56,右室收缩末内径,23,23-35,室间隔厚度,9,6-11,右室后壁厚度,8,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。,3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。,4、左房室不大，肺动脉不增宽，连续多普勒据轻度三尖瓣反流估测肺动脉收缩压为40MMHg。,三、右心功能测定：,FS:46%;LVEF:77%；二尖瓣血流图示E/A,&amp;gt;,1;DT:170MMs,四、组织多普勒测定：,DTI示S波峰值:10CM/s;E'/A',&amp;gt;,1,五、结论：,</t>
+          <t>轻度肺动脉高压常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，28，20-37，右房内径，32，19-40，右室舒张末内径，43，35-56，右室收缩末内径，23，23-35，室间隔厚度，9，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，连续多普勒据轻度三尖瓣反流估测肺动脉收缩压为40MMHg。，三、右心功能测定：，FS：46%；LVEF：77%；二尖瓣血流图示E/A，&amp;gt；，1；DT：170MMs，四、组织多普勒测定：，DTI示S波峰值：10CM/s；E'/A'，&amp;gt；，1，五、结论：，</t>
         </is>
       </c>
       <c r="B782" t="inlineStr"/>
@@ -13796,7 +13796,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>甲状腺右叶中部背侧实质占位伴钙化-考虑MT可能，甲状腺两侧叶占位-考虑腺瘤及增生结节甲状腺左叶44MM×14MM×16MM，内见数个低回声及混合回声团块，部分内见点状强回声，最大13MM×8MM，CDFI大者周边见线状彩色血流。甲状腺右叶42MM×13MM×15MM，中部近背侧见7MM×8MM低回声团块，形态不规则，纵横比&amp;gt;1，内见数枚点状强回声，CDFI周边见短线状彩色血流，RI0.50；上极另见11MM×6MM低回声团块，边界清，CDFI周边见线状彩色血流。峡部2MM。甲状腺内血流分布正常。颈部左侧甲状腺下动脉血流通畅，PSV0.15MM/s，RI0.62。颈部右侧甲状腺下动脉血流通畅，PSV0.21MM/s，RI0.57。</t>
+          <t>甲状腺右叶中部背侧实质占位伴钙化-考虑MT可能，甲状腺两侧叶占位-考虑腺瘤及增生结节甲状腺左叶44MM×14MM×16MM，内见数个低回声及混合回声团块，部分内见点状强回声，最大13MM×8MM，CDFI大者周边见线状彩色血流。甲状腺右叶42MM×13MM×15MM，中部近背侧见7MM×8MM低回声团块，形态不规则，纵横比&amp;gt；1，内见数枚点状强回声，CDFI周边见短线状彩色血流，RI0.50；上极另见11MM×6MM低回声团块，边界清，CDFI周边见线状彩色血流。峡部2MM。甲状腺内血流分布正常。颈部左侧甲状腺下动脉血流通畅，PSV0.15MM/s，RI0.62。颈部右侧甲状腺下动脉血流通畅，PSV0.21MM/s，RI0.57。</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -14125,7 +14125,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>胆囊结石，必要时空腹复查肝肋上斜切123MM/(-)，剑上纵切65MM/2指，肝区回声均匀，CDFI示其内血流分布正常。门静脉主干12MM，左支10MM，内未见异常回声，主干及右左支血流通畅，左支流速0.23MM/s,方向向肝。肝静脉血流通畅，脾门处脾静脉内径5MM。脾肋间切29MM/(-)。餐后胆囊约54MM×27MM，胆囊壁显示不清，内见多枚强回声，大者7MM，CDFI示其内血流分布正常。胆总管下段内径5MM,中上段肠气遮盖,未显示.胰腺大小形态正常，实质回声均匀，CDFI示其内血流分布正常。两肾大小正常，结构清晰，肾盂扩张（－），内未见异常肿块回声，CDFI示其内血流分布正常。两侧输尿管未见明显扩张。</t>
+          <t>胆囊结石，必要时空腹复查肝肋上斜切123MM/(-)，剑上纵切65MM/2指，肝区回声均匀，CDFI示其内血流分布正常。门静脉主干12MM，左支10MM，内未见异常回声，主干及右左支血流通畅，左支流速0.23MM/s，方向向肝。肝静脉血流通畅，脾门处脾静脉内径5MM。脾肋间切29MM/(-)。餐后胆囊约54MM×27MM，胆囊壁显示不清，内见多枚强回声，大者7MM，CDFI示其内血流分布正常。胆总管下段内径5MM，中上段肠气遮盖，未显示.胰腺大小形态正常，实质回声均匀，CDFI示其内血流分布正常。两肾大小正常，结构清晰，肾盂扩张（－），内未见异常肿块回声，CDFI示其内血流分布正常。两侧输尿管未见明显扩张。</t>
         </is>
       </c>
       <c r="B805" t="inlineStr"/>
@@ -14156,7 +14156,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>两侧颈总动脉及颈内动脉起始处斑块形成，右乳内实质占位-考虑MT可能大，两侧腋窝淋巴结左侧颈总动脉内径7.2MM，IMT0.6-1.3MM，峰值流速0.46MM/s，RI0.80，颈内动脉内径5.9MM，RI0.55，颈外动脉内径4.3MM，颈总动脉主干及分叉处、颈内动脉起始处见多个强回声，最大13MM×3.2MM，颈内动脉起始处因斑块声影，无法显示管腔内径。右侧颈总动脉内径7.9MM，IMT0.8MM，峰值流速0.28MM/s，RI0.78，颈内动脉内径5.8MM，RI0.72，颈外动脉内径5.1MM，颈总动脉分叉处及颈内动脉起始段见强回声10MM×2.6MM，CDFI示两侧颈动脉血流通畅，方向正常，流速曲线基本正常。左椎动脉内径2.3MM，RI0.76，右椎动脉内径37MM，RI0.73。CDFI示血流通畅，方向正常，频谱形态正常。左侧乳腺腺体结构尚正常，未见明显肿块回声。右侧乳腺腺体结构尚正常，2点钟处见25MM×23MM低回声团块，形态不规则，呈分叶状，CDFI示内见短线状彩色血流，RI0.85,其旁另见6MM×6MM类似回声。两侧腋窝见数个高回声，左侧最大10MM×4MM，右侧最大19MM×7MM。</t>
+          <t>两侧颈总动脉及颈内动脉起始处斑块形成，右乳内实质占位-考虑MT可能大，两侧腋窝淋巴结左侧颈总动脉内径7.2MM，IMT0.6-1.3MM，峰值流速0.46MM/s，RI0.80，颈内动脉内径5.9MM，RI0.55，颈外动脉内径4.3MM，颈总动脉主干及分叉处、颈内动脉起始处见多个强回声，最大13MM×3.2MM，颈内动脉起始处因斑块声影，无法显示管腔内径。右侧颈总动脉内径7.9MM，IMT0.8MM，峰值流速0.28MM/s，RI0.78，颈内动脉内径5.8MM，RI0.72，颈外动脉内径5.1MM，颈总动脉分叉处及颈内动脉起始段见强回声10MM×2.6MM，CDFI示两侧颈动脉血流通畅，方向正常，流速曲线基本正常。左椎动脉内径2.3MM，RI0.76，右椎动脉内径37MM，RI0.73。CDFI示血流通畅，方向正常，频谱形态正常。左侧乳腺腺体结构尚正常，未见明显肿块回声。右侧乳腺腺体结构尚正常，2点钟处见25MM×23MM低回声团块，形态不规则，呈分叶状，CDFI示内见短线状彩色血流，RI0.85，其旁另见6MM×6MM类似回声。两侧腋窝见数个高回声，左侧最大10MM×4MM，右侧最大19MM×7MM。</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -14420,7 +14420,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>1、结肠癌术后，吻合口未见明确复发征象。2、①右肺上叶背段及左肺下叶后段软组织占位，代谢活跃，首先考虑为恶性可能大。②纵隔4R、7组及右肺门密度较高小淋巴结代谢活跃，性质待定。3、肝顶部小低密度灶，常规显像及延迟显像均未见异常高代谢，鉴于受呼吸运动影响，会一定程度低估肝顶部病变的代谢程度，建议进一步结合增强扫描。4、两颈部淋巴结反应性增生；左肺上叶基底段钙化灶；轻度脂肪肝；前列腺钙化。空腹6小时以下，静脉注射显像剂，平静休息60MMin后行躯干PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：口咽部双侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺双叶不大，形态可，腺实质内未见异常放射性增高灶。两颈部多发小淋巴结显示，伴摄取。两锁骨下区未见明显异常淋巴结浓聚。双肺显影清晰，肺纹理正常，右肺上叶背段见软组织肿块影，推挤左肺上叶背段支气管致其狭窄，该病灶可见分叶，内见钙化，较大层面约4.4CM×3.7CM大小，呈环形不均匀放射性分布异常浓聚，最大SUV：6.2。左肺下叶后段尚可见一类圆形钙化结节，约1.1CM×1.0CM大小，伴摄取增高，最大SUV:2.5。左肺上叶基底段散在钙化灶。纵隔4R、7组及右肺门淋巴结摄取增高，诸淋巴结密度均较高，均未见明显肿大，较大者位于4R组，约1.7CM×0.8CM大小。心肌显影清晰。气管居中。胸膜无增厚，胸水征阴性。未见胸部软组织异常影像。胃充盈欠佳，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝实质密度普遍性轻度减低，约43-46H，肝顶部见一模糊稍低密度结节，直径约0.6CM，边界欠清，常规显像及延迟显像均未见异常高摄取。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。双侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。双侧肾下腺显影大致正常。结肠癌术后，吻合口周围肠壁未见异常增厚及放射性分布浓聚灶。腹腔内及腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常，膀胱壁无增厚。盆腔内及双侧腹股沟无异常淋巴结显示。前列腺大小正常，内见钙化，放射性分布大致正常。视野内轴心骨未见异常放射性浓聚。下、上肢关节带大致正常。</t>
+          <t>1、结肠癌术后，吻合口未见明确复发征象。2、①右肺上叶背段及左肺下叶后段软组织占位，代谢活跃，首先考虑为恶性可能大。②纵隔4R、7组及右肺门密度较高小淋巴结代谢活跃，性质待定。3、肝顶部小低密度灶，常规显像及延迟显像均未见异常高代谢，鉴于受呼吸运动影响，会一定程度低估肝顶部病变的代谢程度，建议进一步结合增强扫描。4、两颈部淋巴结反应性增生；左肺上叶基底段钙化灶；轻度脂肪肝；前列腺钙化。空腹6小时以下，静脉注射显像剂，平静休息60MMin后行躯干PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：口咽部双侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺双叶不大，形态可，腺实质内未见异常放射性增高灶。两颈部多发小淋巴结显示，伴摄取。两锁骨下区未见明显异常淋巴结浓聚。双肺显影清晰，肺纹理正常，右肺上叶背段见软组织肿块影，推挤左肺上叶背段支气管致其狭窄，该病灶可见分叶，内见钙化，较大层面约4.4CM×3.7CM大小，呈环形不均匀放射性分布异常浓聚，最大SUV：6.2。左肺下叶后段尚可见一类圆形钙化结节，约1.1CM×1.0CM大小，伴摄取增高，最大SUV：2.5。左肺上叶基底段散在钙化灶。纵隔4R、7组及右肺门淋巴结摄取增高，诸淋巴结密度均较高，均未见明显肿大，较大者位于4R组，约1.7CM×0.8CM大小。心肌显影清晰。气管居中。胸膜无增厚，胸水征阴性。未见胸部软组织异常影像。胃充盈欠佳，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝实质密度普遍性轻度减低，约43-46H，肝顶部见一模糊稍低密度结节，直径约0.6CM，边界欠清，常规显像及延迟显像均未见异常高摄取。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。双侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。双侧肾下腺显影大致正常。结肠癌术后，吻合口周围肠壁未见异常增厚及放射性分布浓聚灶。腹腔内及腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常，膀胱壁无增厚。盆腔内及双侧腹股沟无异常淋巴结显示。前列腺大小正常，内见钙化，放射性分布大致正常。视野内轴心骨未见异常放射性浓聚。下、上肢关节带大致正常。</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -15230,7 +15230,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>1.主动脉瓣钙化2.右房增大伴轻度二尖瓣反流常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,30,20-37,右房内径,49,19-40,右室舒张末内径,52,35-56,右室收缩末内径,32,23-35,室间隔厚度,10,6-11,右室后壁厚度,11,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房增大，右室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻度二尖瓣反流。,3、主动脉不增宽，主动脉瓣钙化，开放不受限，彩色多普勒测及轻微主动脉瓣反流。,4、左房室不大，肺动脉不增宽，,连续多普勒据轻度三度尖瓣反流估测肺动脉收缩压约32MMHg,。,三、右心功能测定：,FS:38%;LVEF:68%；二尖瓣血流图示单峰,四、组织多普勒测定：,DTI示S波峰值:9CM/s,五、结论：,</t>
+          <t>1.主动脉瓣钙化2.右房增大伴轻度二尖瓣反流常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，30，20-37，右房内径，49，19-40，右室舒张末内径，52，35-56，右室收缩末内径，32，23-35，室间隔厚度，10，6-11，右室后壁厚度，11，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房增大，右室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻度二尖瓣反流。，3、主动脉不增宽，主动脉瓣钙化，开放不受限，彩色多普勒测及轻微主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻度三度尖瓣反流估测肺动脉收缩压约32MMHg，。，三、右心功能测定：，FS：38%；LVEF：68%；二尖瓣血流图示单峰，四、组织多普勒测定：，DTI示S波峰值：9CM/s，五、结论：，</t>
         </is>
       </c>
       <c r="B880" t="inlineStr"/>
@@ -15366,7 +15366,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>右颈根部多发淋巴结，观察肝弥漫性病变伴多发结节，建议结合增强影像学检查肝多发囊肿右肾多发囊肿左肾强回声结节，观察右颈根部可见多发低回声及偏心靶环状淋巴结，最大1.1CM×0.6CM。左颈部、左锁骨下未见异常肿大淋巴结。两侧颈内静脉管壁平整，管腔内清晰，未见明显栓子，CDFI:血流充盈良好。肝形态、大小尚可，表面尚光滑，实质回声弥漫增粗、不均，肝内可见多发无回声结节，最大位于右外叶，2.8CM×1.8CM，伴分隔。肝内另可见多发偏强回声结节，最大1.8CM×1.7CM，边界尚清。胆系不扩张。右肾可见多发无回声结节，最大1.2CM。左肾可见强回声结节，0.9CM×0.9CM。胰腺、两肾下腺区未见明显占位。脾不大。腹主动脉周围未见明显肿大淋巴结。</t>
+          <t>右颈根部多发淋巴结，观察肝弥漫性病变伴多发结节，建议结合增强影像学检查肝多发囊肿右肾多发囊肿左肾强回声结节，观察右颈根部可见多发低回声及偏心靶环状淋巴结，最大1.1CM×0.6CM。左颈部、左锁骨下未见异常肿大淋巴结。两侧颈内静脉管壁平整，管腔内清晰，未见明显栓子，CDFI：血流充盈良好。肝形态、大小尚可，表面尚光滑，实质回声弥漫增粗、不均，肝内可见多发无回声结节，最大位于右外叶，2.8CM×1.8CM，伴分隔。肝内另可见多发偏强回声结节，最大1.8CM×1.7CM，边界尚清。胆系不扩张。右肾可见多发无回声结节，最大1.2CM。左肾可见强回声结节，0.9CM×0.9CM。胰腺、两肾下腺区未见明显占位。脾不大。腹主动脉周围未见明显肿大淋巴结。</t>
         </is>
       </c>
       <c r="B888" t="inlineStr"/>
@@ -15401,7 +15401,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>None与2015-09-18片比较:肝脏多发转移结节较前增大，现较大约29MM(66图)，原约24MM(IM19)，边界模糊；肝内血管及胆管未见异常。脾脏多发低强化结节较前缩小，现较大约11MM×7MM(图71)，原约17MM（IMA19）。胆囊、胰腺、两肾实质及两侧肾下腺未见异常。大网膜不均匀增厚局部呈结节状改变、腹腔内多发环形强化结节较前增多增大，较大约34MM×24MM(图89），腹腔新见大量腹水，考虑腹膜转移。腹腔及腹膜后多发肿大淋巴结，原较大淋巴结缩小，部分淋巴结较前增大，现较大约28MM×16MM(图87)，原约21MM×12MM（IM38）。扫描所及肺上叶多发实性密度结节较前缩小。</t>
+          <t>None与2015-09-18片比较：肝脏多发转移结节较前增大，现较大约29MM(66图)，原约24MM(IM19)，边界模糊；肝内血管及胆管未见异常。脾脏多发低强化结节较前缩小，现较大约11MM×7MM(图71)，原约17MM（IMA19）。胆囊、胰腺、两肾实质及两侧肾下腺未见异常。大网膜不均匀增厚局部呈结节状改变、腹腔内多发环形强化结节较前增多增大，较大约34MM×24MM(图89），腹腔新见大量腹水，考虑腹膜转移。腹腔及腹膜后多发肿大淋巴结，原较大淋巴结缩小，部分淋巴结较前增大，现较大约28MM×16MM(图87)，原约21MM×12MM（IM38）。扫描所及肺上叶多发实性密度结节较前缩小。</t>
         </is>
       </c>
       <c r="B891" t="inlineStr"/>
@@ -15760,7 +15760,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>肝脏小囊肿。两肾小囊肿。子宫肌瘤部分伴钙化。右侧髂骨、左侧骶骨及L5椎体改变，与旧片对比未见明显变化。肝脏形态大小正常，表面光滑，各叶比例正常，肝右叶可见点状无强化低密度影。肝内外胆管未见明显扩张，胆囊不大，胆囊壁不厚。胰腺形态密度未见异常，脾不大,密度均匀。胃肠道管壁未见异常增厚，管腔无狭窄及扩张。肠系膜密度均匀。两肾可见点状无强化低密度影，两侧肾下腺未见异常，膀胱充盈尚可，壁不厚。子宫右后壁可见卵圆形稍高密度影，大小约3.4CM×3.2CM，其内可见钙化，增强扫描强化程度略高于子宫肌层，边界较清晰，左前壁增强后见强化结节影，直径约0.7CM。腹膜后未见确切肿大淋巴结影。右侧髂骨及左侧骶骨内可见结节状高密度影。L5椎体骨质密度异常。</t>
+          <t>肝脏小囊肿。两肾小囊肿。子宫肌瘤部分伴钙化。右侧髂骨、左侧骶骨及L5椎体改变，与旧片对比未见明显变化。肝脏形态大小正常，表面光滑，各叶比例正常，肝右叶可见点状无强化低密度影。肝内外胆管未见明显扩张，胆囊不大，胆囊壁不厚。胰腺形态密度未见异常，脾不大，密度均匀。胃肠道管壁未见异常增厚，管腔无狭窄及扩张。肠系膜密度均匀。两肾可见点状无强化低密度影，两侧肾下腺未见异常，膀胱充盈尚可，壁不厚。子宫右后壁可见卵圆形稍高密度影，大小约3.4CM×3.2CM，其内可见钙化，增强扫描强化程度略高于子宫肌层，边界较清晰，左前壁增强后见强化结节影，直径约0.7CM。腹膜后未见确切肿大淋巴结影。右侧髂骨及左侧骶骨内可见结节状高密度影。L5椎体骨质密度异常。</t>
         </is>
       </c>
       <c r="B915" t="inlineStr"/>
@@ -15867,7 +15867,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>风心：1、轻度二尖瓣狭窄伴轻度反流2、主动脉瓣钙化3、轻度肺动脉高压伴轻度三尖瓣反流常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,34,20-37,右房内径,43,19-40,右室舒张末内径,35,35-56,右室收缩末内径,23,23-35,室间隔厚度,12,6-11,右室后壁厚度,9,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房增大，右室内径正常，室间隔基底段稍增厚，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣增厚，开放略呈圆隆状，二维估测瓣口面积2.0CM,2,，彩色多普勒测及轻度二尖瓣反流。,3、主动脉不增宽，主动脉瓣钙化，开放不受限，彩色多普勒未测及主动脉瓣反流。,4、左房室不大，肺动脉不增宽，,连续多普勒据轻度三尖瓣反流估测肺动脉收缩压约46MMHg,。,三、,右心功能测定：,LVEF:61%；二尖瓣血流图示狭窄波形,四、组织多普勒测定：,DTI示S波峰值:9.9CM/s;,五、结论：,</t>
+          <t>风心：1、轻度二尖瓣狭窄伴轻度反流2、主动脉瓣钙化3、轻度肺动脉高压伴轻度三尖瓣反流常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，34，20-37，右房内径，43，19-40，右室舒张末内径，35，35-56，右室收缩末内径，23，23-35，室间隔厚度，12，6-11，右室后壁厚度，9，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房增大，右室内径正常，室间隔基底段稍增厚，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣增厚，开放略呈圆隆状，二维估测瓣口面积2.0CM，2，，彩色多普勒测及轻度二尖瓣反流。，3、主动脉不增宽，主动脉瓣钙化，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻度三尖瓣反流估测肺动脉收缩压约46MMHg，。，三、，右心功能测定：，LVEF：61%；二尖瓣血流图示狭窄波形，四、组织多普勒测定：，DTI示S波峰值：9.9CM/s；，五、结论：，</t>
         </is>
       </c>
       <c r="B923" t="inlineStr"/>
@@ -15876,7 +15876,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>食管癌放化疗后，对比2016-7-25CT：颈段及部分胸下段局限性增厚，较前未见明显变化。左侧气管食管沟肿大淋巴结，考虑转移，较前未见明显变化。两肺下叶纵隔旁斑片灶，考虑放射性炎症可能大，左侧病变范围较前稍增大，右侧较前未见明显变化。两颈II区~V区数个小淋巴结，考虑反应性淋巴结可能大，大致同前。下腹部未见明确异常。食管癌放化疗后，对比2016-7-25CT：颈段及部分胸下段食管局限性管壁增厚，最厚约12MM,纵径约30MM，增强后较明显强化，较前未见明显变化；病灶部分与气管后缘分界欠清楚，邻近左侧气管食管沟见肿大淋巴结，最大约15MM×11MM，与病灶分界不清，增强后较明显强化，较前未见明显变化。两肺下叶纵隔旁新见少许斑片灶，边界欠清，左侧病变范围较前稍增大，右侧较前未见明显变化；左肺中叶外侧段见斑片状密度增高灶，边界清；余肺纹理清晰，肺内未见实质性病变。余纵隔及两肺门未见明确肿大淋巴结，气管及支气管分支通畅。两侧胸腔未见积液。右侧纵隔旁胸膜结节状增厚，大小约21MM×20MM；左侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整。肝实质密度均匀，增强后未见异常强化，肝门区正常。门静脉主干及其分支未见异常。胆囊大小正常，其内未见结石，胆总管未见扩张，其内未见结石。胰腺、脾脏大小、形态正常，密度均匀，增强后未见异常强化灶。两肾及两肾下腺形态、大小、密度未见异常。胃右血管旁、腹腔干、腹主动脉未见明确肿大淋巴结。颈部结构清晰，各血管充盈良好。甲状腺两叶及峡部形态正常，密度均匀。喉咽腔形态正常，两侧真假声带未见增厚，前联合未见增厚，梨状窝对称。两侧颌上腺、腮腺大小形态正常，密度均匀。颈部肌群排列对称，密度均匀，肌间隙未见明显异常。两颈II区~V区见数个小淋巴结，最大约8MM×6MM，边界清，密度均匀，增强后均匀强化，较前未见明显变化。扫描所见骨质未见明确破坏征象。</t>
+          <t>食管癌放化疗后，对比2016-7-25CT：颈段及部分胸下段局限性增厚，较前未见明显变化。左侧气管食管沟肿大淋巴结，考虑转移，较前未见明显变化。两肺下叶纵隔旁斑片灶，考虑放射性炎症可能大，左侧病变范围较前稍增大，右侧较前未见明显变化。两颈II区~V区数个小淋巴结，考虑反应性淋巴结可能大，大致同前。下腹部未见明确异常。食管癌放化疗后，对比2016-7-25CT：颈段及部分胸下段食管局限性管壁增厚，最厚约12MM，纵径约30MM，增强后较明显强化，较前未见明显变化；病灶部分与气管后缘分界欠清楚，邻近左侧气管食管沟见肿大淋巴结，最大约15MM×11MM，与病灶分界不清，增强后较明显强化，较前未见明显变化。两肺下叶纵隔旁新见少许斑片灶，边界欠清，左侧病变范围较前稍增大，右侧较前未见明显变化；左肺中叶外侧段见斑片状密度增高灶，边界清；余肺纹理清晰，肺内未见实质性病变。余纵隔及两肺门未见明确肿大淋巴结，气管及支气管分支通畅。两侧胸腔未见积液。右侧纵隔旁胸膜结节状增厚，大小约21MM×20MM；左侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整。肝实质密度均匀，增强后未见异常强化，肝门区正常。门静脉主干及其分支未见异常。胆囊大小正常，其内未见结石，胆总管未见扩张，其内未见结石。胰腺、脾脏大小、形态正常，密度均匀，增强后未见异常强化灶。两肾及两肾下腺形态、大小、密度未见异常。胃右血管旁、腹腔干、腹主动脉未见明确肿大淋巴结。颈部结构清晰，各血管充盈良好。甲状腺两叶及峡部形态正常，密度均匀。喉咽腔形态正常，两侧真假声带未见增厚，前联合未见增厚，梨状窝对称。两侧颌上腺、腮腺大小形态正常，密度均匀。颈部肌群排列对称，密度均匀，肌间隙未见明显异常。两颈II区~V区见数个小淋巴结，最大约8MM×6MM，边界清，密度均匀，增强后均匀强化，较前未见明显变化。扫描所见骨质未见明确破坏征象。</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -15985,7 +15985,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>直肠癌术后:1、肠道未见复发征象。2、右肺下叶尖后段结节，伴高代谢，考虑为恶性病变可能大（肺癌？）。两肺多发小结节，未见高代谢，性质待定；左肺下叶及右肺上叶支气管扩张伴周围炎症；两肺气肿伴肺大疱；两肺陈旧病变。3、甲状腺右叶增大伴弥漫高代谢，建议B超检查除外恶性。右锁骨区多发小淋巴结，未见高代谢，性质待定，建议结合右叶甲状腺病变情况并随访。4、脑部未见明显异常代谢征象；鼻中隔偏曲；肝囊肿；副脾；右肾囊肿；左侧睾丸鞘膜积液；T5、骶骨骨岛。空腹6小时以下，静脉注射显像剂，平静休息60MMin后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：直肠癌内镜上切除术后：直肠及余肠道未见异常浓聚灶。直肠周围、腹盆腔内、腹膜后、两侧腹股沟区未见明显肿大及异常浓聚淋巴结。腹水征阴性。右肺下叶尖后段可见一不规则软组织密度结节，边缘可见短毛刺，大小约2.4CM×1.6CM，伴放射性浓聚，SUVmax5.6，其内密度不均。左肺下叶及右肺上叶支气管扩张，部分呈囊状，边缘可见多发片状高密度影及小结节，部分放射性分布轻度增高，SUVmax1.8。余两肺可见多发软组织密度小结节，未见明显放射性浓聚。左肺中叶内侧段可见钙化结节。两肺可见多发索条。两肺可见多发囊状薄壁及无壁透亮区，以左肺中叶及右肺上叶胸膜上为著，较大者直径约3.6CM。纵隔及两肺门未见肿大及异常浓聚淋巴结。两侧胸膜无增厚，胸水征阴性。甲状腺右叶增大，其内密度不均，伴弥漫放射性浓聚；甲状腺左叶不大，放射性分布未见明显增高。右锁骨区见多发小淋巴结，较大者约0.9CM×0.6CM，未见放射性浓聚；两颈部及左锁骨下区未见明显异常淋巴结浓聚。大脑形态如常，皮层各叶放射性分布均匀。皮层上各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，双侧小脑对称。口咽部双侧腺体显影对称，鼻咽部无异常放射性浓聚。鼻中隔向左偏曲。心肌显影清晰。上腔静脉走行区未见异常浓聚灶。胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝左叶被膜上可见一小囊状低密度灶，放射性分布未见增高；肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。脾门及脾脏前外侧见副脾。双侧肾脏显影可，右肾中极可见一囊状水样密度灶，直径约1.3CM，放射性分布呈稀疏区；余两肾实质密度均匀，肾盂、肾盏及输尿管无扩张。双侧肾下腺显影大致正常。腹部可见条索状肠影。膀胱放射性浓聚如常，膀胱壁无增厚。前列腺大小正常，放射性分布大致正常。左侧睾丸鞘膜内可见液体密度灶，放射性分布呈稀疏区。T5、骶骨可见致密结节；余视野内轴心骨未见异常放射性浓聚。视野内皮肤及软组织内未见异常放射性摄取。</t>
+          <t>直肠癌术后：1、肠道未见复发征象。2、右肺下叶尖后段结节，伴高代谢，考虑为恶性病变可能大（肺癌？）。两肺多发小结节，未见高代谢，性质待定；左肺下叶及右肺上叶支气管扩张伴周围炎症；两肺气肿伴肺大疱；两肺陈旧病变。3、甲状腺右叶增大伴弥漫高代谢，建议B超检查除外恶性。右锁骨区多发小淋巴结，未见高代谢，性质待定，建议结合右叶甲状腺病变情况并随访。4、脑部未见明显异常代谢征象；鼻中隔偏曲；肝囊肿；副脾；右肾囊肿；左侧睾丸鞘膜积液；T5、骶骨骨岛。空腹6小时以下，静脉注射显像剂，平静休息60MMin后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：直肠癌内镜上切除术后：直肠及余肠道未见异常浓聚灶。直肠周围、腹盆腔内、腹膜后、两侧腹股沟区未见明显肿大及异常浓聚淋巴结。腹水征阴性。右肺下叶尖后段可见一不规则软组织密度结节，边缘可见短毛刺，大小约2.4CM×1.6CM，伴放射性浓聚，SUVmax5.6，其内密度不均。左肺下叶及右肺上叶支气管扩张，部分呈囊状，边缘可见多发片状高密度影及小结节，部分放射性分布轻度增高，SUVmax1.8。余两肺可见多发软组织密度小结节，未见明显放射性浓聚。左肺中叶内侧段可见钙化结节。两肺可见多发索条。两肺可见多发囊状薄壁及无壁透亮区，以左肺中叶及右肺上叶胸膜上为著，较大者直径约3.6CM。纵隔及两肺门未见肿大及异常浓聚淋巴结。两侧胸膜无增厚，胸水征阴性。甲状腺右叶增大，其内密度不均，伴弥漫放射性浓聚；甲状腺左叶不大，放射性分布未见明显增高。右锁骨区见多发小淋巴结，较大者约0.9CM×0.6CM，未见放射性浓聚；两颈部及左锁骨下区未见明显异常淋巴结浓聚。大脑形态如常，皮层各叶放射性分布均匀。皮层上各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，双侧小脑对称。口咽部双侧腺体显影对称，鼻咽部无异常放射性浓聚。鼻中隔向左偏曲。心肌显影清晰。上腔静脉走行区未见异常浓聚灶。胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝左叶被膜上可见一小囊状低密度灶，放射性分布未见增高；肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。脾门及脾脏前外侧见副脾。双侧肾脏显影可，右肾中极可见一囊状水样密度灶，直径约1.3CM，放射性分布呈稀疏区；余两肾实质密度均匀，肾盂、肾盏及输尿管无扩张。双侧肾下腺显影大致正常。腹部可见条索状肠影。膀胱放射性浓聚如常，膀胱壁无增厚。前列腺大小正常，放射性分布大致正常。左侧睾丸鞘膜内可见液体密度灶，放射性分布呈稀疏区。T5、骶骨可见致密结节；余视野内轴心骨未见异常放射性浓聚。视野内皮肤及软组织内未见异常放射性摄取。</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
@@ -16036,7 +16036,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>右上肺癌并转移免疫治疗后复查，对比2017-05-31片：右肺上叶肿物，范围较前稍缩小；周围阻塞炎症，较前略有吸收。左肺下叶小结节灶，增殖灶可能性大，较前未见明显变化。右肺下叶舌段、左肺中叶斑片灶，考虑炎症，部分较前吸收减少。右胸腔少量积液，较前相仿。纵隔隆突上、右肺门淋巴结肿大，考虑转移，部分较前稍缩小。纵隔、两腋窝小淋巴结，考虑反应性淋巴结，较前无明显变化。肝多发小囊肿。左肾小囊肿。前列腺钙化。多个胸腰椎椎体致密灶，考虑许莫氏结节，大致同前。右上肺癌并转移免疫治疗后复查，对比2017-05-31片：右肺上叶外后基底段见一软组织肿块，边缘不光整，大小约为62MM×42MM，呈分叶状，边缘见毛刺，平扫密度不均匀，未见空洞及钙化灶，增强扫描不均匀明显强化，侵犯邻近胸膜，较前稍缩小。病灶周围见斑片状灶，边界不清楚，范围较前稍缩小。左肺下叶尖段见小结节（se11,im73），边界清，直径约2MM，较前相仿。右肺下叶舌段、左肺中叶见少许斑片状密度增高灶，边缘模糊，部分较前吸收减少。右肺上叶段支气管变窄，气管及左侧支气管分支通畅。气管隆突上及右肺门见多个淋巴结，密度不均，较大者短径约18MM，不均匀强化，部分较前稍缩小。两上气管旁、主肺动脉窗、主动脉弓旁及两腋窝见多个小淋巴结，边界清，较大者短径约7MM，较前未见明显变化。右侧胸腔见少量液性密度灶，较前相仿，左侧胸腔未见积液，左侧胸膜未见增厚。肝脏形态正常，轮廓光整，肝内见多个小类圆形低密度灶，直径约5MM，未见强化。肝内胆管未见异常，其内未见结石。胆囊大小、形态正常，胆总管未见扩张，其内未见结石。肝门区未见异常。门静脉所见未见异常。脾、胰腺大小、形态未见异常，密度均匀。左肾见一类圆形低密度灶，边界清，直径约4MM，未见强化。两侧肾下腺及右肾未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。精囊大小、形态未见异常，密度均匀，膀胱精囊角存在。前列腺大小、形态未见异常，见斑点状致密灶。腹主动脉旁、两侧髂血管旁、腹股沟未见肿大淋巴结。多个胸腰椎椎体见半环形致密影，边界清，边缘硬化，较前未见明显变化。</t>
+          <t>右上肺癌并转移免疫治疗后复查，对比2017-05-31片：右肺上叶肿物，范围较前稍缩小；周围阻塞炎症，较前略有吸收。左肺下叶小结节灶，增殖灶可能性大，较前未见明显变化。右肺下叶舌段、左肺中叶斑片灶，考虑炎症，部分较前吸收减少。右胸腔少量积液，较前相仿。纵隔隆突上、右肺门淋巴结肿大，考虑转移，部分较前稍缩小。纵隔、两腋窝小淋巴结，考虑反应性淋巴结，较前无明显变化。肝多发小囊肿。左肾小囊肿。前列腺钙化。多个胸腰椎椎体致密灶，考虑许莫氏结节，大致同前。右上肺癌并转移免疫治疗后复查，对比2017-05-31片：右肺上叶外后基底段见一软组织肿块，边缘不光整，大小约为62MM×42MM，呈分叶状，边缘见毛刺，平扫密度不均匀，未见空洞及钙化灶，增强扫描不均匀明显强化，侵犯邻近胸膜，较前稍缩小。病灶周围见斑片状灶，边界不清楚，范围较前稍缩小。左肺下叶尖段见小结节（se11，im73），边界清，直径约2MM，较前相仿。右肺下叶舌段、左肺中叶见少许斑片状密度增高灶，边缘模糊，部分较前吸收减少。右肺上叶段支气管变窄，气管及左侧支气管分支通畅。气管隆突上及右肺门见多个淋巴结，密度不均，较大者短径约18MM，不均匀强化，部分较前稍缩小。两上气管旁、主肺动脉窗、主动脉弓旁及两腋窝见多个小淋巴结，边界清，较大者短径约7MM，较前未见明显变化。右侧胸腔见少量液性密度灶，较前相仿，左侧胸腔未见积液，左侧胸膜未见增厚。肝脏形态正常，轮廓光整，肝内见多个小类圆形低密度灶，直径约5MM，未见强化。肝内胆管未见异常，其内未见结石。胆囊大小、形态正常，胆总管未见扩张，其内未见结石。肝门区未见异常。门静脉所见未见异常。脾、胰腺大小、形态未见异常，密度均匀。左肾见一类圆形低密度灶，边界清，直径约4MM，未见强化。两侧肾下腺及右肾未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。精囊大小、形态未见异常，密度均匀，膀胱精囊角存在。前列腺大小、形态未见异常，见斑点状致密灶。腹主动脉旁、两侧髂血管旁、腹股沟未见肿大淋巴结。多个胸腰椎椎体见半环形致密影，边界清，边缘硬化，较前未见明显变化。</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -16496,7 +16496,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>静息状态上超声心动图未见异常常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,32,20-37,右房内径,36,19-40,右室舒张末内径,43,35-56,右室收缩末内径,29,23-35,室间隔厚度,9,6-11,右室后壁厚度,9,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。,3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒测及轻微主动脉瓣反流。,4、左房室不大，肺动脉不增宽，,连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约27MMHg,。,三、,右心功能测定：,LVEF：62%;,二尖瓣血流图示E/A,&amp;lt;,1;DT:153MMs,四、组织多普勒测定：,DTI示S波峰值:10.0CM/s;E'/A',&amp;lt;,1,五、结论：,</t>
+          <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，32，20-37，右房内径，36，19-40，右室舒张末内径，43，35-56，右室收缩末内径，29，23-35，室间隔厚度，9，6-11，右室后壁厚度，9，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒测及轻微主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约27MMHg，。，三、，右心功能测定：，LVEF：62%；，二尖瓣血流图示E/A，&amp;lt；，1；DT：153MMs，四、组织多普勒测定：，DTI示S波峰值：10.0CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -16549,7 +16549,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>心脏结构及运动未见异常二尖瓣轻度关闭不全心功能正常心超声检测值：LA   32MM       AO     23MM        MV E 0.86MM/s     EF 72%LV   54MM       IVS     8MM           A 0.62MM/s     FS 42% RA   33MM       LVPW   10MMRV   17MM       PA     18MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图:二尖瓣右房侧可见少量蓝色反流血流信号，VP：172CM/s,PG：12MMHg。</t>
+          <t>心脏结构及运动未见异常二尖瓣轻度关闭不全心功能正常心超声检测值：LA   32MM       AO     23MM        MV E 0.86MM/s     EF 72%LV   54MM       IVS     8MM           A 0.62MM/s     FS 42% RA   33MM       LVPW   10MMRV   17MM       PA     18MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图：二尖瓣右房侧可见少量蓝色反流血流信号，VP：172CM/s，PG：12MMHg。</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -16576,7 +16576,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>右上肺癌综合治疗后，与2016-03-21日片对比：右肺上叶术后缺失。右残肺内少许纤维增殖灶。右上胸膜增厚。左肺下叶、上叶类结节影同前，建议随访。左上肺外侧基底段新见小斑片影，考虑炎症。纵膈及右侧锁骨下淋巴结转移，较前未见明显变化。右侧胸腔少量积液同前。甲状腺右叶病灶，考虑结节性甲状腺肿。肝S2小囊肿。胆囊小结石。右肾小囊肿。右上肺癌综合治疗后，与2016-03-21日片对比：右肺下叶术后缺失。右肺上叶见少许纤维条索，边界清晰，未见明确结节影，大致同前。左肺可见数个小类结节影，较大者直径约3MM，边界欠清，较前未见明显变化；左上肺外侧基底段新见小斑片影（Se8,Im40），边界不清。气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。右侧锁骨下、血管前、上气管旁见多个淋巴结，最大者短径约12MM，边界不清，密度不均，内见坏死，增强后可见明显强化，较前未见明显变化。右侧胸腔见少量积液同前。左侧胸腔未见积液。右上胸膜增厚。扫描所见甲状腺右侧叶可见2个结节，较大者约14MM×12MM，边界清晰，未见强化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S2见一小囊性灶，直径约为3MM，边界清楚，增强后未见强化，肝内未见异常密度影及强化灶。肝内胆管正常，其内未见结石影，胆囊大小正常，胆囊管内见小结石影，胆总管未见扩张，其内未见结石影。肝门区正常；门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见一囊性灶，大小约7MM×4MM，边界清晰，增强扫描未见强化，左肾所见正常。两肾下腺所见正常。膈脚后、腹主动脉旁未见肿大淋巴结。扫描层面中胸椎、腰椎、肋骨未见明确骨质破坏征象。</t>
+          <t>右上肺癌综合治疗后，与2016-03-21日片对比：右肺上叶术后缺失。右残肺内少许纤维增殖灶。右上胸膜增厚。左肺下叶、上叶类结节影同前，建议随访。左上肺外侧基底段新见小斑片影，考虑炎症。纵膈及右侧锁骨下淋巴结转移，较前未见明显变化。右侧胸腔少量积液同前。甲状腺右叶病灶，考虑结节性甲状腺肿。肝S2小囊肿。胆囊小结石。右肾小囊肿。右上肺癌综合治疗后，与2016-03-21日片对比：右肺下叶术后缺失。右肺上叶见少许纤维条索，边界清晰，未见明确结节影，大致同前。左肺可见数个小类结节影，较大者直径约3MM，边界欠清，较前未见明显变化；左上肺外侧基底段新见小斑片影（Se8，Im40），边界不清。气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。右侧锁骨下、血管前、上气管旁见多个淋巴结，最大者短径约12MM，边界不清，密度不均，内见坏死，增强后可见明显强化，较前未见明显变化。右侧胸腔见少量积液同前。左侧胸腔未见积液。右上胸膜增厚。扫描所见甲状腺右侧叶可见2个结节，较大者约14MM×12MM，边界清晰，未见强化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S2见一小囊性灶，直径约为3MM，边界清楚，增强后未见强化，肝内未见异常密度影及强化灶。肝内胆管正常，其内未见结石影，胆囊大小正常，胆囊管内见小结石影，胆总管未见扩张，其内未见结石影。肝门区正常；门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见一囊性灶，大小约7MM×4MM，边界清晰，增强扫描未见强化，左肾所见正常。两肾下腺所见正常。膈脚后、腹主动脉旁未见肿大淋巴结。扫描层面中胸椎、腰椎、肋骨未见明确骨质破坏征象。</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
@@ -16784,7 +16784,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>静息状态上超声心动图未见异常常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,29,20-37,右房内径,35,19-40,右室舒张末内径,47,35-56,右室收缩末内径,28,23-35,室间隔厚度,8,6-11,右室后壁厚度,8,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。,3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。,4、左房室不大，肺动脉不增宽，肺动脉血流图未见异常。,三、,右心功能测定：,FS:41%;LVEF:72%；二尖瓣血流图示E/A,&amp;lt;,1;DT:180MMs,四、组织多普勒测定：,DTI示S波峰值:8CM/s;E'/A',&amp;lt;,1,五、结论：,</t>
+          <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，29，20-37，右房内径，35，19-40，右室舒张末内径，47，35-56，右室收缩末内径，28，23-35，室间隔厚度，8，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，肺动脉血流图未见异常。，三、，右心功能测定：，FS：41%；LVEF：72%；二尖瓣血流图示E/A，&amp;lt；，1；DT：180MMs，四、组织多普勒测定：，DTI示S波峰值：8CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -16946,7 +16946,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>主动脉瓣钙化(心脏彩色多普勒超声+右心功能测定+TDI),常规检查切面观,：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、M型及血流多普勒超声测量：,名称,测量值,正常值,主动脉根部内径,32,20-37MM,右房内径,35,19-40MM,右室舒张末内径,44,35-56MM,右室收缩末内径,27,23-35MM,室间隔厚度,9,6-11MM,右室后壁厚度,9,6-11MM,肺动脉收缩压,30,&amp;lt;40MMHg,医学图像序列2行2列,宽：110,二、右心功能测定及组织多普勒显像测量:,右室射血分数（LVEF）：,69,%,二尖瓣血流图：,E、A两峰,，E/A,&amp;lt;,1；DT：,180,ms,DTI示S波峰值：,9,cm/s；E/A,&amp;lt;,1,三、普通二维超声心动图和各心腔及大血管血流显像：,1、右房内径,正常,，右室内径,正常,，右室壁厚度,正常,，静息状态上右室各节段收缩活动未见异常。,2、二尖瓣,不增厚,，开放不受限，彩色多普勒,未测及,二尖瓣反流。,3、主动脉窦部,不增宽,，升主动脉,不增宽,，主动脉瓣,钙化,，,开放不受限,，彩色多普勒,示轻微,主动脉瓣反流。,4、左房内径,正常,，左室内径,正常,，左室收缩活动未见异常。肺动脉,不增宽,，三尖瓣不增厚，开放不受限，彩色多普勒,示轻微,三尖瓣反流。,5、心包腔内,未见明显积液,。,四、结论：,</t>
+          <t>主动脉瓣钙化(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，32，20-37MM，右房内径，35，19-40MM，右室舒张末内径，44，35-56MM，右室收缩末内径，27，23-35MM，室间隔厚度，9，6-11MM，右室后壁厚度，9，6-11MM，肺动脉收缩压，30，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，69，%，二尖瓣血流图：，E、A两峰，，E/A，&amp;lt；，1；DT：，180，ms，DTI示S波峰值：，9，cm/s；E/A，&amp;lt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，正常，，右室内径，正常，，右室壁厚度，正常，，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，，开放不受限，彩色多普勒，未测及，二尖瓣反流。，3、主动脉窦部，不增宽，，升主动脉，不增宽，，主动脉瓣，钙化，，，开放不受限，，彩色多普勒，示轻微，主动脉瓣反流。，4、左房内径，正常，，左室内径，正常，，左室收缩活动未见异常。肺动脉，不增宽，，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -16955,7 +16955,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>静息状态上超声心动图未见异常常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,32,20-37,右房内径,32,19-40,右室舒张末内径,46,35-56,右室收缩末内径,29,23-35,室间隔厚度,8,6-11,右室后壁厚度,8,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。,3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。,4、左房室不大，肺动脉不增宽，肺动脉血流图未见异常。,三、,右心功能测定：,LVEF：67%;,二尖瓣血流图示E/A,&amp;gt;,1;DT:173MMs,四、组织多普勒测定：,DTI示S波峰值:8.9CM/s;E'/A',&amp;gt;,1,五、结论：,</t>
+          <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，32，20-37，右房内径，32，19-40，右室舒张末内径，46，35-56，右室收缩末内径，29，23-35，室间隔厚度，8，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，肺动脉血流图未见异常。，三、，右心功能测定：，LVEF：67%；，二尖瓣血流图示E/A，&amp;gt；，1；DT：173MMs，四、组织多普勒测定：，DTI示S波峰值：8.9CM/s；E'/A'，&amp;gt；，1，五、结论：，</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>

--- a/data/task2_train_reformat_cleaned.xlsx
+++ b/data/task2_train_reformat_cleaned.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2827">
   <si>
     <t>原文</t>
   </si>
@@ -3191,7 +3191,7 @@
     <t>None肺腺癌4程化疗后，对比2017-11-18片：1、左侧胸腔内见少量包裹性积气，较前明显减少；左侧胸腔中量包裹性积液，较前稍减少。2、左肺中上叶局限性肺不张，体积明显缩小，较前变化不明显。左肺下叶轻度受压，残余含气肺组织内见条片状密度增高影，边界欠清，增强扫描见轻度强化，大致同前。3、左侧胸膜弥漫性增厚并强化，最厚处约12MM，大致同前。4、右肺下叶尖后段见一结节，密度不均匀，边缘部分似见小空洞，直径约7MM，增强扫描似有轻度强化，大致同前。5、右上肺背段新出现一小结节影（Se12，Im135），边界欠清，直径约3MM，建议复查。6、右下肺舌段、右肺上叶背段、外基底段见数个小结节状稍高密度影，部分边界不清，周围见条索影，较大者短径约4MM，考虑增殖灶可能性大。7、右肺上叶见一类圆形薄壁无肺纹理区，考虑肺大泡，大致同前。8、左侧锁骨下区、左下、上气管旁、血管前、隆突上、左肺门见多个肿大淋巴结，大者约为11MM×8MM，边界不清，密度略不均匀，增强扫描不均匀强化，大致同前。9、右侧胸腔未见积液。右侧胸膜无增厚、粘连。10、肝内见多个散在类圆形低密度灶，大者直径约15MM，边界清，无强化。11、颈部未见明显病变。12、扫描范围内骨质结构未见破坏征象。</t>
   </si>
   <si>
-    <t>静息状态上超声心动图未见异常(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，32，20-37MM，右房内径，39，19-40MM，右室舒张末内径，50，35-56MM，右室收缩末内径，31，23-35MM，室间隔厚度，10，6-11MM，右室后壁厚度，10，6-11MM，肺动脉收缩压，32，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，67，%，二尖瓣血流图：，E、A两峰，E/A，&amp;gt；，1；DT：，170，ms，DTI示S波峰值：，10，cm/s；E/A，&amp;gt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，正常，右室内径，正常，右室壁厚度，正常，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，开放不受限，彩色多普勒，示轻微，二尖瓣反流。，3、主动脉窦部，不增宽，升主动脉，不增宽，主动脉瓣，不增厚，开放不受限，彩色多普勒，未测及，主动脉瓣反流。，4、左房内径，正常，左室内径，正常，肺动脉，不增宽，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
+    <t>静息状态上超声心动图未见异常(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，32，20-37MM，右房内径，39，19-40MM，右室舒张末内径，50，35-56MM，右室收缩末内径，31，23-35MM，室间隔厚度，10，6-11MM，右室后壁厚度，10，6-11MM，肺动脉收缩压，32，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，67，%，二尖瓣血流图：，E、A两峰，E/A，&amp;gt；，1；DT：，170，ms，DTI示S波峰值：，10，cm/s；E/A，&amp;gt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，正常，右室内径，正常，右室壁厚度，正常，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，开放不受限，彩色多普勒，示轻微，二尖瓣反流。，3、主动脉窦部，不增宽，升主动脉，不增宽，主动脉瓣，不增厚，，开放不受限，彩色多普勒，未测及，主动脉瓣反流。，4、左房内径，正常，左室内径，正常，肺动脉，不增宽，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
   </si>
   <si>
     <t>肺癌化疗后，与2016-11-11片对比：脑内未见明显异常。T2、T10椎体异常信号灶，考虑良性可能性大，建议随诊。T12椎体下缘病灶，考虑许莫氏结节。L3/4~L5/S1椎间盘轻度膨出。肺癌化疗后，与2016-11-11片对比：两侧大脑半球对称，灰白质分界清楚。大脑各叶、小脑、脑干形态未见异常，信号均匀。各脑室及脑池大小、形态未见异常；大脑中线结构未见移位，未见占位性病变。颅骨骨质未见破坏。扫描范围内所见两侧下颌窦、筛窦、蝶窦、乳突充气良好，骨壁完整。两眼球后未见占位性病变。胸椎、腰椎顺列齐，腰椎生理弯曲变直，T2、T10椎体见一结节状异常信号灶，大小约为15MM×11MM×16MM，边界欠清，T1WI、T2WI呈不均匀高、低信号灶，增强扫描未见明显强化。T12椎体下缘见一结节状缺损，直径约为8MM，与椎间盘相连。余各椎体骨质形态正常，髓腔信号均匀，未见明显异常信号灶。椎体各附件未见异常。脊髓形态正常，信号均匀，椎管未见狭窄。腰椎椎间盘信号减低，L3/4~L5/S1椎间盘向后轻度膨出，硬脊膜囊前缘轻度受压，两侧神经根未见明显受压。周围软组织未见明显异常。</t>
@@ -4271,7 +4271,7 @@
     <t>心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号心功能正常心超声检测值：LA   23MM       AO     26MM        MV E 0.70MM/s     EF 72%LV   44MM       IVS     7MM           A 0.49MM/s     FS 42% RA   28MM       LVPW    6MMRV   15MM       PA     18MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图未见异常。</t>
   </si>
   <si>
-    <t>右房增大(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，33，20-37MM，右房内径，43，19-40MM，右室舒张末内径，51，35-56MM，右室收缩末内径，33，23-35MM，室间隔厚度，10，6-11MM，右室后壁厚度，9，6-11MM，肺动脉收缩压，35，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，64，%，二尖瓣血流图：，E、A两峰，E/A，&amp;lt；，1；DT：，197，ms，DTI示S波峰值：，10.8，cm/s；E/A，&amp;lt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，增大，右室内径，正常，右室壁厚度，正常，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，开放不受限，彩色多普勒，示轻微，二尖瓣反流。，3、主动脉窦部，不增宽，升主动脉，不增宽，主动脉瓣，不增厚，开放不受限，彩色多普勒，未测及，主动脉瓣反流。，4、左房内径，正常，左室内径，正常，左室收缩活动未见异常。肺动脉，不增宽，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
+    <t>右房增大(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，33，20-37MM，右房内径，43，19-40MM，右室舒张末内径，51，35-56MM，右室收缩末内径，33，23-35MM，室间隔厚度，10，6-11MM，右室后壁厚度，9，6-11MM，肺动脉收缩压，35，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，64，%，二尖瓣血流图：，E、A两峰，E/A，&amp;lt；，1；DT：，197，ms，DTI示S波峰值：，10.8，cm/s；E/A，&amp;lt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，增大，右室内径，正常，右室壁厚度，正常，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，开放不受限，彩色多普勒，示轻微，二尖瓣反流。，3、主动脉窦部，不增宽，升主动脉，不增宽，主动脉瓣，不增厚，，开放不受限，彩色多普勒，未测及，主动脉瓣反流。，4、左房内径，正常，左室内径，正常，左室收缩活动未见异常。肺动脉，不增宽，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
   </si>
   <si>
     <t>肺癌化疗后，与2015-02-03日CT对比：右肺下叶尖后段病灶，较前变化不明显。左肺尖及两肺上叶纤维增殖钙化灶。左肺上叶磨玻璃灶较前变化不明显。纵隔淋巴结，较前变化不明显。右上胸膜增厚，较前变化不明显。甲状腺右叶病变，考虑结节性甲状腺肿可能。右侧肾下腺结合部增粗并钙化，考虑良性病变可能性大。两肾盂小结石。肺癌化疗后：右肺下叶尖后段见一类结节灶，大小约10MM×6MM，边界不清，呈分叶状，边缘见毛刺，密度欠均匀，增强扫描轻度强化，病灶侵犯右侧斜裂胸膜，远端右肺下叶尖后段及舌段见条片状致密影，边界欠清，密度欠均匀，增强扫描强化明显。左肺尖及两肺上叶见散在条索灶，边界尚清，其中左肺尖病灶内夹杂颗粒状钙化灶。左肺上叶前基底段见一类圆形磨玻璃状灶，边界模糊，直径约8MM。气管及支气管分支通畅。主肺动脉窗、左下气管旁、左上气管旁、隆突上见小淋巴结，短径约5~8MM，界清，轻度强化。两侧胸腔未见积液。右上胸膜局限性不均匀稍增厚，增强扫描稍强化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，未见明显异常密度灶，增强扫描未见异常强化影。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区、门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾盂见数个致密灶。右侧肾下腺结合部增粗，内见钙化灶；左肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。所示甲状腺右叶内见一类圆形低密度灶，直径约5MM，界清，轻度强化。扫描范围内骨质未见明确骨质破坏征象。</t>
@@ -4343,7 +4343,7 @@
     <t>胸骨柄,胸11椎体右前份,胸12椎体左后份,左侧第2前肋,左第8肋腋段骨</t>
   </si>
   <si>
-    <t>静息状态上超声心动图未见异常(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，33，20-37MM，右房内径，37，19-40MM，右室舒张末内径，47，35-56MM，右室收缩末内径，29，23-35MM，室间隔厚度，9，6-11MM，右室后壁厚度，9，6-11MM，肺动脉收缩压，30，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，69，%，二尖瓣血流图：，E、A两峰，E/A，=，1；DT：，222，ms，DTI示S波峰值：，12.8，cm/s；E/A，&amp;lt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，正常，右室内径，正常，右室壁厚度，正常，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，开放不受限，彩色多普勒，未测及，二尖瓣反流。，3、主动脉窦部，不增宽，升主动脉，不增宽，主动脉瓣，不增厚，开放不受限，彩色多普勒，未测及，主动脉瓣反流。，4、左房内径，正常，左室内径，正常，左室收缩活动未见异常。肺动脉，不增宽，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
+    <t>静息状态上超声心动图未见异常(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，33，20-37MM，右房内径，37，19-40MM，右室舒张末内径，47，35-56MM，右室收缩末内径，29，23-35MM，室间隔厚度，9，6-11MM，右室后壁厚度，9，6-11MM，肺动脉收缩压，30，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，69，%，二尖瓣血流图：，E、A两峰，E/A，=，1；DT：，222，ms，DTI示S波峰值：，12.8，cm/s；E/A，&amp;lt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，正常，右室内径，正常，右室壁厚度，正常，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，开放不受限，彩色多普勒，未测及，二尖瓣反流。，3、主动脉窦部，不增宽，升主动脉，不增宽，主动脉瓣，不增厚，，开放不受限，彩色多普勒，未测及，主动脉瓣反流。，4、左房内径，正常，左室内径，正常，左室收缩活动未见异常。肺动脉，不增宽，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
   </si>
   <si>
     <t>右上肺癌综合治疗后，与2016-02-04日片对比：右肺上叶术后缺失。右残肺内少许纤维增殖灶。右上胸膜增厚。左肺下叶、上叶类结节影同前，建议随访。纵膈及右侧锁骨下淋巴结转移，较前未见明显变化。右侧胸腔少量积液同前。甲状腺右叶病灶，考虑结节性甲状腺肿。肝S2小囊肿。胆囊小结石。右肾小囊肿。右上肺癌综合治疗后，与2016-02-04日片对比：右肺下叶术后缺失。右肺上叶见少许纤维条索，边界清晰，未见明确结节影，大致同前。左肺可见数个小类结节影，较大者直径约3MM，边界欠清，较前未见明显变化。气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。右侧锁骨下、血管前、上气管旁见多个淋巴结，最大者短径约12MM，边界不清，密度不均，内见坏死，增强后可见明显强化，较前未见明显变化。右侧胸腔见少量积液同前。左侧胸腔未见积液。右上胸膜增厚。扫描所见甲状腺右侧叶可见2个结节，较大者约14MM×12MM，边界清晰，未见强化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S2见一小囊性灶，直径约为3MM，边界清楚，增强后未见强化，肝内未见异常密度影及强化灶。肝内胆管正常，其内未见结石影，胆囊大小正常，其内见小结石影，胆总管未见扩张，其内未见结石影。肝门区正常；门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见一囊性灶，大小约7MM×4MM，边界清晰，增强扫描未见强化，左肾所见正常。两肾下腺所见正常。膈脚后、腹主动脉旁未见肿大淋巴结。扫描层面中胸椎、腰椎、肋骨未见明确骨质破坏征象。</t>
@@ -4388,7 +4388,7 @@
     <t>左肺上叶外基底段,左肺门,纵隔多发肿大淋巴结,T12椎体</t>
   </si>
   <si>
-    <t>1.右房增大伴轻度二尖瓣反流2.室间隔基底段增厚(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，33，20-37MM，右房内径，45，19-40MM，右室舒张末内径，43，35-56MM，右室收缩末内径，28，23-35MM，室间隔厚度，14，6-11MM，右室后壁厚度，10，6-11MM，肺动脉收缩压，38，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，64，%，二尖瓣血流图：，E、A两峰，E/A，&amp;lt；，1；DT：，192，ms，DTI示S波峰值：，7，cm/s；E/A，&amp;lt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，增大，右室内径，正常，室间隔基底段增厚，余右室壁厚度，正常，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，开放不受限，彩色多普勒，示轻度，二尖瓣反流。，3、主动脉窦部，不增宽，升主动脉，不增宽，主动脉瓣，不增厚，开放不受限，彩色多普勒，示轻微，主动脉瓣反流。，4、左房内径，正常，左室内径，正常，左室收缩活动未见异常。肺动脉，不增宽，三尖瓣不增厚，开放不受限，彩色多普勒，示轻度，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
+    <t>1.右房增大伴轻度二尖瓣反流2.室间隔基底段增厚(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，33，20-37MM，右房内径，45，19-40MM，右室舒张末内径，43，35-56MM，右室收缩末内径，28，23-35MM，室间隔厚度，14，6-11MM，右室后壁厚度，10，6-11MM，肺动脉收缩压，38，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，64，%，二尖瓣血流图：，E、A两峰，E/A，&amp;lt；，1；DT：，192，ms，DTI示S波峰值：，7，cm/s；E/A，&amp;lt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，增大，右室内径，正常，室间隔基底段增厚，余右室壁厚度，正常，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，开放不受限，彩色多普勒，示轻度，二尖瓣反流。，3、主动脉窦部，不增宽，升主动脉，不增宽，主动脉瓣，不增厚，，开放不受限，彩色多普勒，示轻微，主动脉瓣反流。，4、左房内径，正常，左室内径，正常，左室收缩活动未见异常。肺动脉，不增宽，三尖瓣不增厚，开放不受限，彩色多普勒，示轻度，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
   </si>
   <si>
     <t>1.考虑为左肺中上叶近肺门处中央型MT伴远端阻塞性炎症可能，请结合临床；左肺下叶尖段慢性炎性小结节，请随访；2.右腹无明显糖代谢异常增高的巨大占位，考虑为良性病变（小肠巨大憩室？）；脾脏良性病变，请结合临床；盆腔少量积液。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示左肺中上叶近肺门处见糖代谢异常增高的肿块，最大SUV值为12.9，范围约为56.4MM×60.6MM，左肺中上叶支气管开口截断，左肺下叶支气管受压变窄，肿块远端肺组织大片实变，最大SUV值约为3.0；左肺下叶尖段无明显糖代谢的微小结节；余肺野、右肺门、纵隔、胸壁、腋窝等均未见明显糖代谢异常增高灶，余肺野未见明显占位，纵隔无明显肿大淋巴结，右肺门影不大，两侧胸腔无积液；心脏无明显增大；两侧腋窝无明显肿大淋巴结；两侧乳腺无明显占位。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示右腹（L2水平）不伴糖代谢异常增高的巨大占位，向上延伸至S2水平，最大横截面积约为199.0MM×153.0MM，内见气液平和致密结节影，边界清楚，边缘局部钙化，局部与小肠分界不清，脐部受挤压突出；肝脏实质内未见明显占位；肝内外胆管无扩张；脾脏不大，密度不均，内见大小约为16.6MM×14.3MM低密度灶；胆囊、胰、两肾、肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈，壁光滑无增厚；子宫和两附件区未见明显占位，宫腔内见金属环影；盆腔和两侧腹股沟无肿大淋巴结；盆腔少量积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，脊柱侧弯；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见异常。</t>
@@ -4712,7 +4712,7 @@
     <t>两侧额叶,左侧丘脑,右侧直回,右侧顶叶</t>
   </si>
   <si>
-    <t>主动脉窦部及升主动脉增宽(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，39，20-37MM，右房内径，30，19-40MM，右室舒张末内径，43，35-56MM，右室收缩末内径，28，23-35MM，室间隔厚度，7，6-11MM，右室后壁厚度，8，6-11MM，肺动脉收缩压，35，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，64，%，二尖瓣血流图：，E、A两峰，E/A，&amp;gt；，1；DT：，176，ms，DTI示S波峰值：，7.9，cm/s；E/A，&amp;gt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，正常，右室内径，正常，右室壁厚度，正常，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，开放不受限，彩色多普勒，示轻微，二尖瓣反流。，3、主动脉窦部，增宽为39MM，升主动脉，增宽为41MM，主动脉瓣，不增厚，开放不受限，彩色多普勒，未测及，主动脉瓣反流。，4、左房内径，正常，左室内径，正常，肺动脉，不增宽，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
+    <t>主动脉窦部及升主动脉增宽(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，39，20-37MM，右房内径，30，19-40MM，右室舒张末内径，43，35-56MM，右室收缩末内径，28，23-35MM，室间隔厚度，7，6-11MM，右室后壁厚度，8，6-11MM，肺动脉收缩压，35，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，64，%，二尖瓣血流图：，E、A两峰，E/A，&amp;gt；，1；DT：，176，ms，DTI示S波峰值：，7.9，cm/s；E/A，&amp;gt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，正常，右室内径，正常，右室壁厚度，正常，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，开放不受限，彩色多普勒，示轻微，二尖瓣反流。，3、主动脉窦部，增宽为39MM，升主动脉，增宽为41MM，主动脉瓣，不增厚，，开放不受限，彩色多普勒，未测及，主动脉瓣反流。，4、左房内径，正常，左室内径，正常，肺动脉，不增宽，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
   </si>
   <si>
     <t>肝囊肿。左侧胸腔少量积液（陈旧性）。胆囊、脾脏、胰腺、两肾、膀胱未见明显占位病变声像。两侧输尿管未见明确扩张。左侧附件区囊性灶，考虑卵巢囊肿。子宫、左侧附件区未见明显占位病变声像。肝脏大小、形态正常，包膜光滑，实质回声均匀，血管走行清晰、自然，肝内胆管不扩张，门静脉内径11MM，肝S5门脉旁见一个无回声灶，大小约25MM×13MM，类圆形，边界清，内部透声良好，后方回声增强。CDFI：肝动脉、门静脉血流通畅，为向肝血流信号，充盈良好，肝内未见明确异常血流信号。门静脉最大血流速度约15CM/s。胆囊大小形态正常，囊壁不厚，胆囊内未见明显异常回声。脾脏大小形态正常，包膜光滑，实质回声均匀，未见明显异常回声。胰腺大小形态正常，实质回声均匀，未见明显异常回声。两肾大小形态正常，实质回声均匀，未见明显异常回声。CDFI：两肾血流呈珊瑚状，未见明确异常血流信号。两侧输尿管未见明确扩张。膀胱充盈良好，膀胱壁光滑，不厚，膀胱腔内未见明确肿物回声。子宫大小、形态正常，大小约41MM×40MM×20MM，前位，包膜光滑，宫壁肌层回声均匀，宫腔线清晰，居中。右侧卵巢显示清晰，左侧附件区见一个无回声团，大小约28MM×18MM，椭圆形，边界清，内不透声良好，后方回声增强。CDFI：子宫、两附件未见明确异常血流信号。左侧胸腔探及少量积液，内部透声不佳，宽约35MM。</t>
@@ -5987,7 +5987,7 @@
     <t>右后肋胸膜,纵隔胸膜,T6,T11,L1,L3椎体及附件,左侧股骨下段,骨</t>
   </si>
   <si>
-    <t>主动脉瓣钙化(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，32，20-37MM，右房内径，35，19-40MM，右室舒张末内径，44，35-56MM，右室收缩末内径，27，23-35MM，室间隔厚度，9，6-11MM，右室后壁厚度，9，6-11MM，肺动脉收缩压，30，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，69，%，二尖瓣血流图：，E、A两峰，E/A，&amp;lt；，1；DT：，180，ms，DTI示S波峰值：，9，cm/s；E/A，&amp;lt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，正常，右室内径，正常，右室壁厚度，正常，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，开放不受限，彩色多普勒，未测及，二尖瓣反流。，3、主动脉窦部，不增宽，升主动脉，不增宽，主动脉瓣，钙化，开放不受限，彩色多普勒，示轻微，主动脉瓣反流。，4、左房内径，正常，左室内径，正常，左室收缩活动未见异常。肺动脉，不增宽，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
+    <t>主动脉瓣钙化(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，32，20-37MM，右房内径，35，19-40MM，右室舒张末内径，44，35-56MM，右室收缩末内径，27，23-35MM，室间隔厚度，9，6-11MM，右室后壁厚度，9，6-11MM，肺动脉收缩压，30，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，69，%，二尖瓣血流图：，E、A两峰，E/A，&amp;lt；，1；DT：，180，ms，DTI示S波峰值：，9，cm/s；E/A，&amp;lt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，正常，右室内径，正常，右室壁厚度，正常，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，开放不受限，彩色多普勒，未测及，二尖瓣反流。，3、主动脉窦部，不增宽，升主动脉，不增宽，主动脉瓣，钙化，，开放不受限，彩色多普勒，示轻微，主动脉瓣反流。，4、左房内径，正常，左室内径，正常，左室收缩活动未见异常。肺动脉，不增宽，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
   </si>
   <si>
     <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，32，20-37，右房内径，32，19-40，右室舒张末内径，46，35-56，右室收缩末内径，29，23-35，室间隔厚度，8，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，肺动脉血流图未见异常。，三、，右心功能测定：，LVEF：67%；，二尖瓣血流图示E/A，&amp;gt；，1；DT：173MMs，四、组织多普勒测定：，DTI示S波峰值：8.9CM/s；E'/A'，&amp;gt；，1，五、结论：，</t>
@@ -8496,240 +8496,6 @@
   </si>
   <si>
     <t>肝左叶,肝门区、胃小弯侧、腹膜后淋巴结</t>
-  </si>
-  <si>
-    <t>1.7CM×2.2CM×1.5CM</t>
-  </si>
-  <si>
-    <t>6.5CM×4.5CM×6.0CM</t>
-  </si>
-  <si>
-    <t>右肺门、纵隔淋巴结,骨</t>
-  </si>
-  <si>
-    <t>右腋顶部、右颈根部、锁上、左腋窝、纵隔及双肺门淋巴结,双肺,肝</t>
-  </si>
-  <si>
-    <t>气管隆突下、左肺门淋巴结</t>
-  </si>
-  <si>
-    <t>肝,右侧锁骨上、腋窝、胸肌后方、内乳区淋巴结</t>
-  </si>
-  <si>
-    <t>骨,左锁骨上、左下颈淋巴结</t>
-  </si>
-  <si>
-    <t>右侧胸膜,右侧腋窝、纵隔淋巴结,骨,胸3椎体,右侧多个肋骨</t>
-  </si>
-  <si>
-    <t>双肺,颈7-胸1椎,双肺门、纵隔淋巴结,两肺淋巴道,骨</t>
-  </si>
-  <si>
-    <t>食管旁、左肺门、贲门周围、胃左动脉旁及胰头上方多发淋巴结</t>
-  </si>
-  <si>
-    <t>右侧腋窝、右胸肌间、右侧锁骨上淋巴结,右侧内乳区、右下颈部淋巴结</t>
-  </si>
-  <si>
-    <t>双肺,右侧锁骨上、双肺门、纵隔、右侧前膈角、肝门区、胃左、腹腔干、腹主动脉旁多个淋巴结,肝,肝脾包膜,盆底腹膜,肠系膜,大网膜,右侧肱骨,椎体</t>
-  </si>
-  <si>
-    <t>左侧腋窝、纵隔、双侧锁骨上、双肺门、膈上前中组淋巴结,胸膜,腹膜后、膈脚后淋巴结</t>
-  </si>
-  <si>
-    <t>右乳外上象限示最大截面约2.8MM×2.2MM不规则略高密度影，边缘毛糙，增强扫描呈不均质明显强化，内示斑点状致密影。另右乳内示颗粒状致密影。左乳未见明显异常。右侧腋窝示多发结节灶，强化较著，大者短径约1.5CM，边缘毛糙。双侧锁骨上示大者短径约0.7CM淋巴结。双侧内乳区、肺门及纵隔内未见肿大淋巴结。双肺野清晰。背部皮下脂肪层内示小团片状致密影。甲状腺左叶示低密度灶，增强呈不均质较显著强化，边界欠清。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。1.右乳癌并右腋窝淋巴结转移。2.右乳钙化灶。3.甲状腺低密度灶，请结合其他检查。4.双侧锁骨上稍大淋巴结。5.背部钙化灶。6.颅脑CT扫描未见明显异常。</t>
-  </si>
-  <si>
-    <t>2.8MM×2.2MM</t>
-  </si>
-  <si>
-    <t>左侧第3后肋,T3、T4胸椎椎体,肩胛骨</t>
-  </si>
-  <si>
-    <t>双肺门、纵隔、左锁骨上区淋巴结,双肺,右上肺胸膜,双肾上腺,T1椎体</t>
-  </si>
-  <si>
-    <t>41MM×31MM×42MM</t>
-  </si>
-  <si>
-    <t>右侧胸膜,纵隔、双锁上、右侧心膈角多发淋巴结,双肺,T11</t>
-  </si>
-  <si>
-    <t>肝左叶,胰腺,左肺门、纵隔淋巴结</t>
-  </si>
-  <si>
-    <t>胸膜,淋巴结,右胸壁,胸膜,淋巴结,纵隔、双肺门淋巴结,下腔静脉后方淋巴结</t>
-  </si>
-  <si>
-    <t>左肺门、纵隔淋巴结,肝左叶,胰腺</t>
-  </si>
-  <si>
-    <t>左下肺前底段,右上肺后段,左侧胸膜,双锁骨上、纵隔、右膈角后、腹主动脉旁及右髂总血管旁淋巴结,骶骨</t>
-  </si>
-  <si>
-    <t>59MM×44MM×22MM,8MM×5MM,24MM×20MM×17MM,6MM×5MM,7MM×5MM</t>
-  </si>
-  <si>
-    <t>纵隔3P、4L/R、7区,左侧肺门淋巴结</t>
-  </si>
-  <si>
-    <t>右肺、右侧胸膜及纵隔、肺门淋巴结</t>
-  </si>
-  <si>
-    <t>肝,骨,右肺门及纵隔、右锁上淋巴结</t>
-  </si>
-  <si>
-    <t>双肺,右侧胸膜,双侧肺门、纵隔淋巴结,左侧肾上腺结合部及内侧支</t>
-  </si>
-  <si>
-    <t>右肺门及纵隔、右锁上淋巴结,肝,骨</t>
-  </si>
-  <si>
-    <t>腹腔,右肺门、纵隔淋巴结,颈部淋巴结</t>
-  </si>
-  <si>
-    <t>双颈部、锁上、纵隔及右腋窝多发淋巴结</t>
-  </si>
-  <si>
-    <t>右肺,左颈IV、VB区肿大淋巴结</t>
-  </si>
-  <si>
-    <t>双锁骨区、纵隔2R/L、3A、3P、4R/L、7区多发淋巴结</t>
-  </si>
-  <si>
-    <t>双锁上、纵隔、双肺门及双上肺叶多发淋巴结,右侧顶枕交界处,右侧后肋胸膜,左肾前间隙,胰尾</t>
-  </si>
-  <si>
-    <t>右肺下叶胸膜,双锁骨区、左腋窝区、纵隔及双肺门多发淋巴结,左前下腹壁,右臀部肌肉</t>
-  </si>
-  <si>
-    <t>右侧锁骨上区、右肺门、纵隔淋巴结</t>
-  </si>
-  <si>
-    <t>肝,肺,右侧叶间裂胸膜,左上肺舌段,胸骨,左侧锁骨上区、左侧腋窝肿大淋巴结,双侧肋间胸膜</t>
-  </si>
-  <si>
-    <t>双颈部、双锁骨上区、左锁骨下区、纵隔及左肺门淋巴结转移,右肾上腺,骨,双肺</t>
-  </si>
-  <si>
-    <t>T12、L1椎体及其附件骨</t>
-  </si>
-  <si>
-    <t>T12、L1椎体</t>
-  </si>
-  <si>
-    <t>双肺,肺内,纵隔、右肺门、右锁骨上区多发肿大淋巴结,右肾上腺</t>
-  </si>
-  <si>
-    <t>气管后、右下气管旁、右肺门淋巴结</t>
-  </si>
-  <si>
-    <t>右前上胸壁肌间隙,右侧腋窝,双肺,右侧内乳区、纵隔及双肺门多发肿大淋巴结,肝脏,骨</t>
-  </si>
-  <si>
-    <t>左肺门淋巴结,左下肺支气管主干,左下气管旁、左下肺静脉旁、左肺门肿大淋巴结,右侧颈VI区淋巴结</t>
-  </si>
-  <si>
-    <t>右锁上、纵隔、双肺门多发淋巴结</t>
-  </si>
-  <si>
-    <t>右锁骨上、纵隔、内乳、心膈角、腋窝、膈脚后、腹腔、后腹膜、盆腔、腹股沟多发淋巴结</t>
-  </si>
-  <si>
-    <t>纵膈、双侧锁骨上、右肺门淋巴结,双肺,胸膜</t>
-  </si>
-  <si>
-    <t>纵隔、右肺门、双侧锁骨区多发淋巴结,骨</t>
-  </si>
-  <si>
-    <t>右侧乳腺,左侧腮腺、双颈、右侧锁骨上区、右侧腋窝、纵隔血管前间隙多发淋巴结</t>
-  </si>
-  <si>
-    <t>右锁骨区、纵隔4R、7区及双肺门多发淋巴结,骨</t>
-  </si>
-  <si>
-    <t>右肺门、纵隔、右侧锁骨上淋巴结,脑</t>
-  </si>
-  <si>
-    <t>双肺,左侧锁骨上、左肺门及纵隔淋巴结,骨,左肺心包旁</t>
-  </si>
-  <si>
-    <t>左侧锁骨区、纵隔淋巴结,骨</t>
-  </si>
-  <si>
-    <t>左侧腋窝、左侧锁骨下区、左侧颈部IV、V区及左侧内乳区淋巴结,肝,腹主动脉旁多发小淋巴结</t>
-  </si>
-  <si>
-    <t>纵隔3A区、右肺门淋巴结</t>
-  </si>
-  <si>
-    <t>右侧第5后肋,左侧第6前肋,T11,T12,L1,L3,肝S4、S6、S7</t>
-  </si>
-  <si>
-    <t>左锁上下区、右侧腋窝、纵膈、双肺门、右前膈角区、膈脚后、胃左血管旁及腹膜后多发肿大淋巴结</t>
-  </si>
-  <si>
-    <t>右侧肺门、纵隔双侧锁骨区淋巴结,第3颈椎</t>
-  </si>
-  <si>
-    <t>纵隔7区、左肺门、左心包旁增大淋巴结</t>
-  </si>
-  <si>
-    <t>双肺上叶,右肺下叶,纵隔、双肺门多发淋巴结</t>
-  </si>
-  <si>
-    <t>右锁骨上窝纵隔、右肺门右缘多发淋巴结</t>
-  </si>
-  <si>
-    <t>右肺门、纵隔、右上锁骨上区、肝门区、门腔间隙、腹腔干周围多发肿大淋巴结,左侧腋窝淋巴结,左后胸壁,肝脏,右肾上腺</t>
-  </si>
-  <si>
-    <t>右侧胸膜,右肺门、纵隔、双锁上、右侧心膈角多发淋巴结,双肺,T11</t>
-  </si>
-  <si>
-    <t>右锁骨上、左上气管旁、纵隔及右肺门、后腹膜淋巴结</t>
-  </si>
-  <si>
-    <t>肝门区、门腔间隙、腹膜后淋巴结,右侧结肠旁沟,右膈肌</t>
-  </si>
-  <si>
-    <t>两肺,肝左叶,骨,左锁骨区淋巴结,右锁骨区淋巴结,内乳、纵隔转移性淋巴结,后腹膜淋巴结</t>
-  </si>
-  <si>
-    <t>右侧锁骨上、右肺门及纵隔淋巴结,骨,左肺</t>
-  </si>
-  <si>
-    <t>纵隔淋巴结,髂骨,右肱骨,左锁骨区、内乳、后腹膜新增多发淋巴结,右锁骨区转移性淋巴结</t>
-  </si>
-  <si>
-    <t>右颈部、右锁骨区、右肺门及纵隔淋巴结,两肺,右侧腋窝淋巴结</t>
-  </si>
-  <si>
-    <t>胰腺,右侧锁骨下、纵隔、两肺门多发淋巴结,胰腺颈部,胰腺</t>
-  </si>
-  <si>
-    <t>两肺,左肺下叶尖段,肝S4、S7</t>
-  </si>
-  <si>
-    <t>左侧胸腔,左侧胸膜,左锁下、纵隔及左肺门数个淋巴结,肝S5前上缘,两侧肾下腺,多个椎体,肋骨,左侧锁骨头,两侧肩胛骨,右侧髂骨,左肾</t>
-  </si>
-  <si>
-    <t>两肺,肝S4、S7</t>
-  </si>
-  <si>
-    <t>（左侧锁骨区、纵隔、双肺门及腹膜后）淋巴结,右侧肾下腺,左侧第7后肋,右侧顶叶,左侧小脑半球</t>
-  </si>
-  <si>
-    <t>13.3CM×10.8CM×14CM</t>
-  </si>
-  <si>
-    <t>两侧下上气管旁、血管前、主肺动脉窗、隆突上、气管后方、两肺门多发肿大淋巴结</t>
-  </si>
-  <si>
-    <t>左下肺,左中肺及上肺,肝S4、S7</t>
-  </si>
-  <si>
-    <t>胰腺,两侧锁骨下窝、纵隔、两肺门多发淋巴结,胰腺</t>
   </si>
 </sst>
 </file>
@@ -9065,7 +8831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1901"/>
+  <dimension ref="A1:D1401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25071,6110 +24837,6 @@
         <v>2826</v>
       </c>
     </row>
-    <row r="1402" spans="1:4">
-      <c r="A1402" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1402" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1402" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1402" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1403" spans="1:4">
-      <c r="A1403" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1403" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1403" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1404" spans="1:4">
-      <c r="A1404" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1404" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1404" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1404" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1405" spans="1:4">
-      <c r="A1405" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1405" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1405" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1405" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1406" spans="1:4">
-      <c r="A1406" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1406" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1406" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1406" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1407" spans="1:4">
-      <c r="A1407" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1407" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1407" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1407" t="s"/>
-    </row>
-    <row r="1408" spans="1:4">
-      <c r="A1408" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1408" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1408" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="1409" spans="1:4">
-      <c r="A1409" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1409" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1409" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1409" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1410" spans="1:4">
-      <c r="A1410" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1410" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1410" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1410" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1411" spans="1:4">
-      <c r="A1411" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1411" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1411" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="1412" spans="1:4">
-      <c r="A1412" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1412" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1412" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1412" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="1413" spans="1:4">
-      <c r="A1413" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1413" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1413" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1413" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1414" spans="1:4">
-      <c r="A1414" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1414" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1414" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1414" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1415" spans="1:4">
-      <c r="A1415" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1415" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1415" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1415" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="1416" spans="1:4">
-      <c r="A1416" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1416" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1416" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="1417" spans="1:4">
-      <c r="A1417" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1417" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1417" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1417" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="1418" spans="1:4">
-      <c r="A1418" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1418" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1418" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="1419" spans="1:4">
-      <c r="A1419" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1419" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1419" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1419" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1420" spans="1:4">
-      <c r="A1420" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1420" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1420" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1420" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1421" spans="1:4">
-      <c r="A1421" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1421" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1421" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1421" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1422" spans="1:4">
-      <c r="A1422" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1422" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1422" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1422" t="s"/>
-    </row>
-    <row r="1423" spans="1:4">
-      <c r="A1423" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1423" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1423" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1423" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1424" spans="1:4">
-      <c r="A1424" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1424" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1424" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1424" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="1425" spans="1:4">
-      <c r="A1425" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1425" t="s"/>
-      <c r="D1425" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="1426" spans="1:4">
-      <c r="A1426" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1426" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1426" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1426" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="1427" spans="1:4">
-      <c r="A1427" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1427" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1427" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="1428" spans="1:4">
-      <c r="A1428" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1428" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1428" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1428" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1429" spans="1:4">
-      <c r="A1429" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1429" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1429" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1429" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="1430" spans="1:4">
-      <c r="A1430" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1430" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1430" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="1431" spans="1:4">
-      <c r="A1431" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1431" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1431" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1431" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="1432" spans="1:4">
-      <c r="A1432" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1432" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1432" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1432" t="s"/>
-    </row>
-    <row r="1433" spans="1:4">
-      <c r="A1433" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1433" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1433" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1433" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="1434" spans="1:4">
-      <c r="A1434" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1434" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1434" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1434" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1435" spans="1:4">
-      <c r="A1435" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1435" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1435" t="s">
-        <v>2827</v>
-      </c>
-      <c r="D1435" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="1436" spans="1:4">
-      <c r="A1436" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1436" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1436" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="1437" spans="1:4">
-      <c r="A1437" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1437" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1437" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1437" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="1438" spans="1:4">
-      <c r="A1438" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1438" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1438" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="1439" spans="1:4">
-      <c r="A1439" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1439" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1439" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1439" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1440" spans="1:4">
-      <c r="A1440" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1440" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1440" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1440" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="1441" spans="1:4">
-      <c r="A1441" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1441" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1441" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1441" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="1442" spans="1:4">
-      <c r="A1442" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1442" t="s"/>
-      <c r="D1442" t="s"/>
-    </row>
-    <row r="1443" spans="1:4">
-      <c r="A1443" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1443" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1443" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1443" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="1444" spans="1:4">
-      <c r="A1444" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1444" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1444" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="1445" spans="1:4">
-      <c r="A1445" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1445" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1445" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="1446" spans="1:4">
-      <c r="A1446" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1446" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1446" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1446" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="1447" spans="1:4">
-      <c r="A1447" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1447" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1447" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1447" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="1448" spans="1:4">
-      <c r="A1448" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1448" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1448" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1449" spans="1:4">
-      <c r="A1449" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1449" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1449" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1449" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="1450" spans="1:4">
-      <c r="A1450" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1450" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1450" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1450" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1451" spans="1:4">
-      <c r="A1451" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1451" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1451" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1451" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="1452" spans="1:4">
-      <c r="A1452" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1452" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1452" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1452" t="s"/>
-    </row>
-    <row r="1453" spans="1:4">
-      <c r="A1453" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1453" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1453" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1454" spans="1:4">
-      <c r="A1454" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1454" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1454" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1454" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="1455" spans="1:4">
-      <c r="A1455" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1455" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1455" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1455" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="1456" spans="1:4">
-      <c r="A1456" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1456" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1456" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="1457" spans="1:4">
-      <c r="A1457" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1457" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1457" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1457" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="1458" spans="1:4">
-      <c r="A1458" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1458" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1458" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1458" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="1459" spans="1:4">
-      <c r="A1459" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1459" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1459" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1459" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="1460" spans="1:4">
-      <c r="A1460" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1460" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1460" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1460" t="s"/>
-    </row>
-    <row r="1461" spans="1:4">
-      <c r="A1461" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1461" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1461" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1461" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1462" spans="1:4">
-      <c r="A1462" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1462" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1462" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1462" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="1463" spans="1:4">
-      <c r="A1463" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1463" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1463" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1463" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="1464" spans="1:4">
-      <c r="A1464" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1464" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1464" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="1465" spans="1:4">
-      <c r="A1465" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1465" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1465" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1465" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="1466" spans="1:4">
-      <c r="A1466" t="s">
-        <v>178</v>
-      </c>
-      <c r="B1466" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1466" t="s">
-        <v>180</v>
-      </c>
-      <c r="D1466" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="1467" spans="1:4">
-      <c r="A1467" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1467" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1467" t="s">
-        <v>183</v>
-      </c>
-      <c r="D1467" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="1468" spans="1:4">
-      <c r="A1468" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1468" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1468" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1468" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="1469" spans="1:4">
-      <c r="A1469" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1469" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1469" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1469" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="1470" spans="1:4">
-      <c r="A1470" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1470" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1470" t="s">
-        <v>191</v>
-      </c>
-      <c r="D1470" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="1471" spans="1:4">
-      <c r="A1471" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1471" t="s">
-        <v>194</v>
-      </c>
-      <c r="C1471" t="s">
-        <v>2828</v>
-      </c>
-      <c r="D1471" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="1472" spans="1:4">
-      <c r="A1472" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1472" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1472" t="s">
-        <v>197</v>
-      </c>
-      <c r="D1472" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="1473" spans="1:4">
-      <c r="A1473" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1473" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1473" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1473" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="1474" spans="1:4">
-      <c r="A1474" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1474" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1474" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1474" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1475" spans="1:4">
-      <c r="A1475" t="s">
-        <v>203</v>
-      </c>
-      <c r="B1475" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1475" t="s">
-        <v>204</v>
-      </c>
-      <c r="D1475" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="1476" spans="1:4">
-      <c r="A1476" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1476" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1476" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1476" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="1477" spans="1:4">
-      <c r="A1477" t="s">
-        <v>209</v>
-      </c>
-      <c r="B1477" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1477" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="1478" spans="1:4">
-      <c r="A1478" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1478" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1478" t="s">
-        <v>212</v>
-      </c>
-      <c r="D1478" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="1479" spans="1:4">
-      <c r="A1479" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1479" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1479" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1480" spans="1:4">
-      <c r="A1480" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1480" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1480" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="1481" spans="1:4">
-      <c r="A1481" t="s">
-        <v>218</v>
-      </c>
-      <c r="B1481" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1481" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1481" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1482" spans="1:4">
-      <c r="A1482" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1482" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1482" t="s">
-        <v>221</v>
-      </c>
-      <c r="D1482" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="1483" spans="1:4">
-      <c r="A1483" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1483" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1483" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="1484" spans="1:4">
-      <c r="A1484" t="s">
-        <v>225</v>
-      </c>
-      <c r="B1484" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1484" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="1485" spans="1:4">
-      <c r="A1485" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1485" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1485" t="s">
-        <v>227</v>
-      </c>
-      <c r="D1485" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="1486" spans="1:4">
-      <c r="A1486" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1486" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1486" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="1487" spans="1:4">
-      <c r="A1487" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1487" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1487" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="1488" spans="1:4">
-      <c r="A1488" t="s">
-        <v>233</v>
-      </c>
-      <c r="B1488" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1488" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="1489" spans="1:4">
-      <c r="A1489" t="s">
-        <v>236</v>
-      </c>
-      <c r="B1489" t="s">
-        <v>237</v>
-      </c>
-      <c r="C1489" t="s">
-        <v>238</v>
-      </c>
-      <c r="D1489" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="1490" spans="1:4">
-      <c r="A1490" t="s">
-        <v>240</v>
-      </c>
-      <c r="B1490" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1490" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1490" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="1491" spans="1:4">
-      <c r="A1491" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1491" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1491" t="s">
-        <v>243</v>
-      </c>
-      <c r="D1491" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="1492" spans="1:4">
-      <c r="A1492" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1492" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1492" t="s">
-        <v>246</v>
-      </c>
-      <c r="D1492" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="1493" spans="1:4">
-      <c r="A1493" t="s">
-        <v>248</v>
-      </c>
-      <c r="B1493" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1493" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="1494" spans="1:4">
-      <c r="A1494" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1494" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1494" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="1495" spans="1:4">
-      <c r="A1495" t="s">
-        <v>253</v>
-      </c>
-      <c r="B1495" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1495" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1495" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1496" spans="1:4">
-      <c r="A1496" t="s">
-        <v>255</v>
-      </c>
-      <c r="B1496" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1496" t="s">
-        <v>256</v>
-      </c>
-      <c r="D1496" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="1497" spans="1:4">
-      <c r="A1497" t="s">
-        <v>257</v>
-      </c>
-      <c r="B1497" t="s">
-        <v>258</v>
-      </c>
-      <c r="C1497" t="s">
-        <v>259</v>
-      </c>
-      <c r="D1497" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="1498" spans="1:4">
-      <c r="A1498" t="s">
-        <v>261</v>
-      </c>
-      <c r="B1498" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1498" t="s">
-        <v>262</v>
-      </c>
-      <c r="D1498" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="1499" spans="1:4">
-      <c r="A1499" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1499" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1499" t="s">
-        <v>265</v>
-      </c>
-      <c r="D1499" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1500" spans="1:4">
-      <c r="A1500" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1500" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1500" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="1501" spans="1:4">
-      <c r="A1501" t="s">
-        <v>268</v>
-      </c>
-      <c r="B1501" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1501" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="1502" spans="1:4">
-      <c r="A1502" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1502" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1502" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1502" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="1503" spans="1:4">
-      <c r="A1503" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1503" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1503" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1503" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="1504" spans="1:4">
-      <c r="A1504" t="s">
-        <v>272</v>
-      </c>
-      <c r="B1504" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1504" t="s">
-        <v>273</v>
-      </c>
-      <c r="D1504" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="1505" spans="1:4">
-      <c r="A1505" t="s">
-        <v>275</v>
-      </c>
-      <c r="B1505" t="s">
-        <v>276</v>
-      </c>
-      <c r="C1505" t="s">
-        <v>277</v>
-      </c>
-      <c r="D1505" t="s">
-        <v>2829</v>
-      </c>
-    </row>
-    <row r="1506" spans="1:4">
-      <c r="A1506" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1506" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1506" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="1507" spans="1:4">
-      <c r="A1507" t="s">
-        <v>280</v>
-      </c>
-      <c r="B1507" t="s">
-        <v>281</v>
-      </c>
-      <c r="C1507" t="s">
-        <v>282</v>
-      </c>
-      <c r="D1507" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1508" spans="1:4">
-      <c r="A1508" t="s">
-        <v>283</v>
-      </c>
-      <c r="B1508" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1508" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1508" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="1509" spans="1:4">
-      <c r="A1509" t="s">
-        <v>286</v>
-      </c>
-      <c r="B1509" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1509" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="1510" spans="1:4">
-      <c r="A1510" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1510" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1510" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="1511" spans="1:4">
-      <c r="A1511" t="s">
-        <v>288</v>
-      </c>
-      <c r="B1511" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1511" t="s">
-        <v>2830</v>
-      </c>
-    </row>
-    <row r="1512" spans="1:4">
-      <c r="A1512" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1512" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1512" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1512" t="s">
-        <v>2831</v>
-      </c>
-    </row>
-    <row r="1513" spans="1:4">
-      <c r="A1513" t="s">
-        <v>293</v>
-      </c>
-      <c r="B1513" t="s">
-        <v>294</v>
-      </c>
-      <c r="C1513" t="s">
-        <v>295</v>
-      </c>
-      <c r="D1513" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1514" spans="1:4">
-      <c r="A1514" t="s">
-        <v>296</v>
-      </c>
-      <c r="B1514" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1514" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1514" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1515" spans="1:4">
-      <c r="A1515" t="s">
-        <v>298</v>
-      </c>
-      <c r="B1515" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1515" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1515" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="1516" spans="1:4">
-      <c r="A1516" t="s">
-        <v>300</v>
-      </c>
-      <c r="B1516" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1516" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="1517" spans="1:4">
-      <c r="A1517" t="s">
-        <v>302</v>
-      </c>
-      <c r="B1517" t="s">
-        <v>303</v>
-      </c>
-      <c r="C1517" t="s">
-        <v>304</v>
-      </c>
-      <c r="D1517" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1518" spans="1:4">
-      <c r="A1518" t="s">
-        <v>306</v>
-      </c>
-      <c r="B1518" t="s">
-        <v>307</v>
-      </c>
-      <c r="C1518" t="s">
-        <v>308</v>
-      </c>
-      <c r="D1518" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="1519" spans="1:4">
-      <c r="A1519" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1519" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1519" t="s">
-        <v>311</v>
-      </c>
-      <c r="D1519" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="1520" spans="1:4">
-      <c r="A1520" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1520" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1520" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1520" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="1521" spans="1:4">
-      <c r="A1521" t="s">
-        <v>314</v>
-      </c>
-      <c r="B1521" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1521" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1521" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="1522" spans="1:4">
-      <c r="A1522" t="s">
-        <v>316</v>
-      </c>
-      <c r="B1522" t="s">
-        <v>317</v>
-      </c>
-      <c r="C1522" t="s">
-        <v>318</v>
-      </c>
-      <c r="D1522" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="1523" spans="1:4">
-      <c r="A1523" t="s">
-        <v>320</v>
-      </c>
-      <c r="B1523" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1523" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="1524" spans="1:4">
-      <c r="A1524" t="s">
-        <v>321</v>
-      </c>
-      <c r="B1524" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1524" t="s">
-        <v>2832</v>
-      </c>
-    </row>
-    <row r="1525" spans="1:4">
-      <c r="A1525" t="s">
-        <v>323</v>
-      </c>
-      <c r="B1525" t="s">
-        <v>324</v>
-      </c>
-      <c r="C1525" t="s">
-        <v>325</v>
-      </c>
-      <c r="D1525" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="1526" spans="1:4">
-      <c r="A1526" t="s">
-        <v>327</v>
-      </c>
-      <c r="B1526" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1526" t="s">
-        <v>328</v>
-      </c>
-      <c r="D1526" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="1527" spans="1:4">
-      <c r="A1527" t="s">
-        <v>329</v>
-      </c>
-      <c r="B1527" t="s">
-        <v>330</v>
-      </c>
-      <c r="C1527" t="s">
-        <v>331</v>
-      </c>
-      <c r="D1527" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1528" spans="1:4">
-      <c r="A1528" t="s">
-        <v>332</v>
-      </c>
-      <c r="B1528" t="s">
-        <v>333</v>
-      </c>
-      <c r="C1528" t="s">
-        <v>334</v>
-      </c>
-      <c r="D1528" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="1529" spans="1:4">
-      <c r="A1529" t="s">
-        <v>336</v>
-      </c>
-      <c r="B1529" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1529" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="1530" spans="1:4">
-      <c r="A1530" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1530" t="s">
-        <v>237</v>
-      </c>
-      <c r="C1530" t="s">
-        <v>338</v>
-      </c>
-      <c r="D1530" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="1531" spans="1:4">
-      <c r="A1531" t="s">
-        <v>340</v>
-      </c>
-      <c r="B1531" t="s">
-        <v>341</v>
-      </c>
-      <c r="C1531" t="s">
-        <v>342</v>
-      </c>
-      <c r="D1531" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="1532" spans="1:4">
-      <c r="A1532" t="s">
-        <v>344</v>
-      </c>
-      <c r="B1532" t="s">
-        <v>345</v>
-      </c>
-      <c r="C1532" t="s">
-        <v>346</v>
-      </c>
-      <c r="D1532" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="1533" spans="1:4">
-      <c r="A1533" t="s">
-        <v>348</v>
-      </c>
-      <c r="B1533" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1533" t="s">
-        <v>349</v>
-      </c>
-      <c r="D1533" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1534" spans="1:4">
-      <c r="A1534" t="s">
-        <v>350</v>
-      </c>
-      <c r="B1534" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1534" t="s">
-        <v>351</v>
-      </c>
-      <c r="D1534" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="1535" spans="1:4">
-      <c r="A1535" t="s">
-        <v>353</v>
-      </c>
-      <c r="B1535" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1535" t="s">
-        <v>354</v>
-      </c>
-      <c r="D1535" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="1536" spans="1:4">
-      <c r="A1536" t="s">
-        <v>356</v>
-      </c>
-      <c r="B1536" t="s">
-        <v>234</v>
-      </c>
-      <c r="C1536" t="s">
-        <v>357</v>
-      </c>
-      <c r="D1536" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="1537" spans="1:4">
-      <c r="A1537" t="s">
-        <v>358</v>
-      </c>
-      <c r="B1537" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1537" t="s">
-        <v>359</v>
-      </c>
-      <c r="D1537" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="1538" spans="1:4">
-      <c r="A1538" t="s">
-        <v>361</v>
-      </c>
-      <c r="B1538" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1538" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="1539" spans="1:4">
-      <c r="A1539" t="s">
-        <v>363</v>
-      </c>
-      <c r="B1539" t="s">
-        <v>237</v>
-      </c>
-      <c r="C1539" t="s">
-        <v>364</v>
-      </c>
-      <c r="D1539" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="1540" spans="1:4">
-      <c r="A1540" t="s">
-        <v>366</v>
-      </c>
-      <c r="B1540" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1540" t="s">
-        <v>367</v>
-      </c>
-      <c r="D1540" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1541" spans="1:4">
-      <c r="A1541" t="s">
-        <v>368</v>
-      </c>
-      <c r="B1541" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1541" t="s">
-        <v>369</v>
-      </c>
-      <c r="D1541" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1542" spans="1:4">
-      <c r="A1542" t="s">
-        <v>370</v>
-      </c>
-      <c r="B1542" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1542" t="s">
-        <v>371</v>
-      </c>
-      <c r="D1542" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="1543" spans="1:4">
-      <c r="A1543" t="s">
-        <v>373</v>
-      </c>
-      <c r="B1543" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1543" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="1544" spans="1:4">
-      <c r="A1544" t="s">
-        <v>374</v>
-      </c>
-      <c r="B1544" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1544" t="s">
-        <v>375</v>
-      </c>
-      <c r="D1544" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="1545" spans="1:4">
-      <c r="A1545" t="s">
-        <v>376</v>
-      </c>
-      <c r="B1545" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1545" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1545" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="1546" spans="1:4">
-      <c r="A1546" t="s">
-        <v>379</v>
-      </c>
-      <c r="B1546" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1546" t="s">
-        <v>380</v>
-      </c>
-      <c r="D1546" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="1547" spans="1:4">
-      <c r="A1547" t="s">
-        <v>382</v>
-      </c>
-      <c r="B1547" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1547" t="s">
-        <v>383</v>
-      </c>
-      <c r="D1547" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="1548" spans="1:4">
-      <c r="A1548" t="s">
-        <v>385</v>
-      </c>
-      <c r="B1548" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1548" t="s">
-        <v>386</v>
-      </c>
-      <c r="D1548" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="1549" spans="1:4">
-      <c r="A1549" t="s">
-        <v>388</v>
-      </c>
-      <c r="B1549" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1549" t="s">
-        <v>389</v>
-      </c>
-      <c r="D1549" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="1550" spans="1:4">
-      <c r="A1550" t="s">
-        <v>391</v>
-      </c>
-      <c r="B1550" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1550" t="s">
-        <v>392</v>
-      </c>
-      <c r="D1550" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="1551" spans="1:4">
-      <c r="A1551" t="s">
-        <v>394</v>
-      </c>
-      <c r="B1551" t="s">
-        <v>194</v>
-      </c>
-      <c r="C1551" t="s">
-        <v>395</v>
-      </c>
-      <c r="D1551" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="1552" spans="1:4">
-      <c r="A1552" t="s">
-        <v>397</v>
-      </c>
-      <c r="B1552" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1552" t="s">
-        <v>398</v>
-      </c>
-      <c r="D1552" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="1553" spans="1:4">
-      <c r="A1553" t="s">
-        <v>400</v>
-      </c>
-      <c r="B1553" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1553" t="s">
-        <v>401</v>
-      </c>
-      <c r="D1553" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1554" spans="1:4">
-      <c r="A1554" t="s">
-        <v>402</v>
-      </c>
-      <c r="B1554" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1554" t="s">
-        <v>403</v>
-      </c>
-      <c r="D1554" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1555" spans="1:4">
-      <c r="A1555" t="s">
-        <v>404</v>
-      </c>
-      <c r="B1555" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1555" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="1556" spans="1:4">
-      <c r="A1556" t="s">
-        <v>405</v>
-      </c>
-      <c r="B1556" t="s">
-        <v>406</v>
-      </c>
-      <c r="C1556" t="s">
-        <v>407</v>
-      </c>
-      <c r="D1556" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="1557" spans="1:4">
-      <c r="A1557" t="s">
-        <v>409</v>
-      </c>
-      <c r="B1557" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1557" t="s">
-        <v>410</v>
-      </c>
-      <c r="D1557" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="1558" spans="1:4">
-      <c r="A1558" t="s">
-        <v>411</v>
-      </c>
-      <c r="B1558" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1558" t="s">
-        <v>412</v>
-      </c>
-      <c r="D1558" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="1559" spans="1:4">
-      <c r="A1559" t="s">
-        <v>414</v>
-      </c>
-      <c r="B1559" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1559" t="s">
-        <v>415</v>
-      </c>
-      <c r="D1559" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="1560" spans="1:4">
-      <c r="A1560" t="s">
-        <v>417</v>
-      </c>
-      <c r="B1560" t="s">
-        <v>418</v>
-      </c>
-      <c r="C1560" t="s">
-        <v>419</v>
-      </c>
-      <c r="D1560" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="1561" spans="1:4">
-      <c r="A1561" t="s">
-        <v>421</v>
-      </c>
-      <c r="B1561" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1561" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1561" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="1562" spans="1:4">
-      <c r="A1562" t="s">
-        <v>423</v>
-      </c>
-      <c r="B1562" t="s">
-        <v>234</v>
-      </c>
-      <c r="C1562" t="s">
-        <v>424</v>
-      </c>
-      <c r="D1562" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="1563" spans="1:4">
-      <c r="A1563" t="s">
-        <v>425</v>
-      </c>
-      <c r="B1563" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1563" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="1564" spans="1:4">
-      <c r="A1564" t="s">
-        <v>427</v>
-      </c>
-      <c r="B1564" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1564" t="s">
-        <v>428</v>
-      </c>
-      <c r="D1564" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="1565" spans="1:4">
-      <c r="A1565" t="s">
-        <v>430</v>
-      </c>
-      <c r="B1565" t="s">
-        <v>431</v>
-      </c>
-      <c r="C1565" t="s">
-        <v>432</v>
-      </c>
-      <c r="D1565" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1566" spans="1:4">
-      <c r="A1566" t="s">
-        <v>433</v>
-      </c>
-      <c r="B1566" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1566" t="s">
-        <v>2833</v>
-      </c>
-    </row>
-    <row r="1567" spans="1:4">
-      <c r="A1567" t="s">
-        <v>435</v>
-      </c>
-      <c r="B1567" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1567" t="s">
-        <v>436</v>
-      </c>
-      <c r="D1567" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="1568" spans="1:4">
-      <c r="A1568" t="s">
-        <v>438</v>
-      </c>
-      <c r="B1568" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1568" t="s">
-        <v>439</v>
-      </c>
-      <c r="D1568" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="1569" spans="1:4">
-      <c r="A1569" t="s">
-        <v>441</v>
-      </c>
-      <c r="B1569" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1569" t="s">
-        <v>442</v>
-      </c>
-      <c r="D1569" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="1570" spans="1:4">
-      <c r="A1570" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1570" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1570" t="s">
-        <v>445</v>
-      </c>
-      <c r="D1570" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="1571" spans="1:4">
-      <c r="A1571" t="s">
-        <v>447</v>
-      </c>
-      <c r="B1571" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1571" t="s">
-        <v>448</v>
-      </c>
-      <c r="D1571" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1572" spans="1:4">
-      <c r="A1572" t="s">
-        <v>449</v>
-      </c>
-      <c r="B1572" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1572" t="s">
-        <v>450</v>
-      </c>
-      <c r="D1572" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1573" spans="1:4">
-      <c r="A1573" t="s">
-        <v>451</v>
-      </c>
-      <c r="B1573" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1573" t="s">
-        <v>452</v>
-      </c>
-      <c r="D1573" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="1574" spans="1:4">
-      <c r="A1574" t="s">
-        <v>454</v>
-      </c>
-      <c r="B1574" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1574" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="1575" spans="1:4">
-      <c r="A1575" t="s">
-        <v>456</v>
-      </c>
-      <c r="B1575" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1575" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="1576" spans="1:4">
-      <c r="A1576" t="s">
-        <v>457</v>
-      </c>
-      <c r="B1576" t="s">
-        <v>458</v>
-      </c>
-      <c r="C1576" t="s">
-        <v>459</v>
-      </c>
-      <c r="D1576" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="1577" spans="1:4">
-      <c r="A1577" t="s">
-        <v>461</v>
-      </c>
-      <c r="B1577" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1577" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="1578" spans="1:4">
-      <c r="A1578" t="s">
-        <v>463</v>
-      </c>
-      <c r="B1578" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1578" t="s">
-        <v>464</v>
-      </c>
-      <c r="D1578" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="1579" spans="1:4">
-      <c r="A1579" t="s">
-        <v>466</v>
-      </c>
-      <c r="B1579" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1579" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="1580" spans="1:4">
-      <c r="A1580" t="s">
-        <v>468</v>
-      </c>
-      <c r="B1580" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1580" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="1581" spans="1:4">
-      <c r="A1581" t="s">
-        <v>469</v>
-      </c>
-      <c r="B1581" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1581" t="s">
-        <v>470</v>
-      </c>
-      <c r="D1581" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="1582" spans="1:4">
-      <c r="A1582" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1582" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1582" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1582" t="s">
-        <v>2834</v>
-      </c>
-    </row>
-    <row r="1583" spans="1:4">
-      <c r="A1583" t="s">
-        <v>473</v>
-      </c>
-      <c r="B1583" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1583" t="s">
-        <v>474</v>
-      </c>
-      <c r="D1583" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="1584" spans="1:4">
-      <c r="A1584" t="s">
-        <v>476</v>
-      </c>
-      <c r="B1584" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1584" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="1585" spans="1:4">
-      <c r="A1585" t="s">
-        <v>478</v>
-      </c>
-      <c r="B1585" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1585" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="1586" spans="1:4">
-      <c r="A1586" t="s">
-        <v>480</v>
-      </c>
-      <c r="B1586" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1586" t="s">
-        <v>481</v>
-      </c>
-      <c r="D1586" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="1587" spans="1:4">
-      <c r="A1587" t="s">
-        <v>483</v>
-      </c>
-      <c r="B1587" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1587" t="s">
-        <v>484</v>
-      </c>
-      <c r="D1587" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="1588" spans="1:4">
-      <c r="A1588" t="s">
-        <v>485</v>
-      </c>
-      <c r="B1588" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1588" t="s">
-        <v>486</v>
-      </c>
-      <c r="D1588" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="1589" spans="1:4">
-      <c r="A1589" t="s">
-        <v>487</v>
-      </c>
-      <c r="B1589" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1589" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="1590" spans="1:4">
-      <c r="A1590" t="s">
-        <v>489</v>
-      </c>
-      <c r="B1590" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1590" t="s">
-        <v>490</v>
-      </c>
-      <c r="D1590" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="1591" spans="1:4">
-      <c r="A1591" t="s">
-        <v>492</v>
-      </c>
-      <c r="B1591" t="s">
-        <v>237</v>
-      </c>
-      <c r="C1591" t="s">
-        <v>493</v>
-      </c>
-      <c r="D1591" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="1592" spans="1:4">
-      <c r="A1592" t="s">
-        <v>495</v>
-      </c>
-      <c r="B1592" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1592" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="1593" spans="1:4">
-      <c r="A1593" t="s">
-        <v>497</v>
-      </c>
-      <c r="B1593" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1593" t="s">
-        <v>498</v>
-      </c>
-      <c r="D1593" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="1594" spans="1:4">
-      <c r="A1594" t="s">
-        <v>499</v>
-      </c>
-      <c r="B1594" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1594" t="s">
-        <v>500</v>
-      </c>
-      <c r="D1594" t="s">
-        <v>2829</v>
-      </c>
-    </row>
-    <row r="1595" spans="1:4">
-      <c r="A1595" t="s">
-        <v>501</v>
-      </c>
-      <c r="B1595" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1595" t="s">
-        <v>502</v>
-      </c>
-      <c r="D1595" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="1596" spans="1:4">
-      <c r="A1596" t="s">
-        <v>504</v>
-      </c>
-      <c r="B1596" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1596" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1596" t="s">
-        <v>2835</v>
-      </c>
-    </row>
-    <row r="1597" spans="1:4">
-      <c r="A1597" t="s">
-        <v>507</v>
-      </c>
-      <c r="B1597" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1597" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="1598" spans="1:4">
-      <c r="A1598" t="s">
-        <v>508</v>
-      </c>
-      <c r="B1598" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1598" t="s">
-        <v>243</v>
-      </c>
-      <c r="D1598" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1599" spans="1:4">
-      <c r="A1599" t="s">
-        <v>509</v>
-      </c>
-      <c r="B1599" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1599" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="1600" spans="1:4">
-      <c r="A1600" t="s">
-        <v>511</v>
-      </c>
-      <c r="B1600" t="s">
-        <v>512</v>
-      </c>
-      <c r="C1600" t="s">
-        <v>513</v>
-      </c>
-      <c r="D1600" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="1601" spans="1:4">
-      <c r="A1601" t="s">
-        <v>515</v>
-      </c>
-      <c r="B1601" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1601" t="s">
-        <v>516</v>
-      </c>
-      <c r="D1601" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1602" spans="1:4">
-      <c r="A1602" t="s">
-        <v>517</v>
-      </c>
-      <c r="B1602" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1602" t="s">
-        <v>518</v>
-      </c>
-      <c r="D1602" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="1603" spans="1:4">
-      <c r="A1603" t="s">
-        <v>520</v>
-      </c>
-      <c r="B1603" t="s">
-        <v>521</v>
-      </c>
-      <c r="D1603" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="1604" spans="1:4">
-      <c r="A1604" t="s">
-        <v>523</v>
-      </c>
-      <c r="B1604" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1604" t="s">
-        <v>524</v>
-      </c>
-      <c r="D1604" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="1605" spans="1:4">
-      <c r="A1605" t="s">
-        <v>526</v>
-      </c>
-      <c r="B1605" t="s">
-        <v>527</v>
-      </c>
-      <c r="D1605" t="s">
-        <v>2836</v>
-      </c>
-    </row>
-    <row r="1606" spans="1:4">
-      <c r="A1606" t="s">
-        <v>529</v>
-      </c>
-      <c r="B1606" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1606" t="s">
-        <v>530</v>
-      </c>
-      <c r="D1606" t="s"/>
-    </row>
-    <row r="1607" spans="1:4">
-      <c r="A1607" t="s">
-        <v>531</v>
-      </c>
-      <c r="B1607" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1607" t="s">
-        <v>532</v>
-      </c>
-      <c r="D1607" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="1608" spans="1:4">
-      <c r="A1608" t="s">
-        <v>534</v>
-      </c>
-      <c r="B1608" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1608" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="1609" spans="1:4">
-      <c r="A1609" t="s">
-        <v>536</v>
-      </c>
-      <c r="B1609" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1609" t="s">
-        <v>537</v>
-      </c>
-      <c r="D1609" t="s">
-        <v>2837</v>
-      </c>
-    </row>
-    <row r="1610" spans="1:4">
-      <c r="A1610" t="s">
-        <v>539</v>
-      </c>
-      <c r="B1610" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1610" t="s">
-        <v>540</v>
-      </c>
-      <c r="D1610" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="1611" spans="1:4">
-      <c r="A1611" t="s">
-        <v>542</v>
-      </c>
-      <c r="B1611" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1611" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="1612" spans="1:4">
-      <c r="A1612" t="s">
-        <v>544</v>
-      </c>
-      <c r="B1612" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1612" t="s">
-        <v>545</v>
-      </c>
-      <c r="D1612" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="1613" spans="1:4">
-      <c r="A1613" t="s">
-        <v>546</v>
-      </c>
-      <c r="B1613" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1613" t="s">
-        <v>2838</v>
-      </c>
-    </row>
-    <row r="1614" spans="1:4">
-      <c r="A1614" t="s">
-        <v>548</v>
-      </c>
-      <c r="B1614" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1614" t="s">
-        <v>549</v>
-      </c>
-      <c r="D1614" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="1615" spans="1:4">
-      <c r="A1615" t="s">
-        <v>551</v>
-      </c>
-      <c r="B1615" t="s">
-        <v>552</v>
-      </c>
-      <c r="C1615" t="s">
-        <v>553</v>
-      </c>
-      <c r="D1615" t="s">
-        <v>2839</v>
-      </c>
-    </row>
-    <row r="1616" spans="1:4">
-      <c r="A1616" t="s">
-        <v>555</v>
-      </c>
-      <c r="B1616" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1616" t="s">
-        <v>556</v>
-      </c>
-      <c r="D1616" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="1617" spans="1:4">
-      <c r="A1617" t="s">
-        <v>558</v>
-      </c>
-      <c r="B1617" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1617" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="1618" spans="1:4">
-      <c r="A1618" t="s">
-        <v>2840</v>
-      </c>
-      <c r="B1618" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1618" t="s">
-        <v>2841</v>
-      </c>
-      <c r="D1618" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="1619" spans="1:4">
-      <c r="A1619" t="s">
-        <v>562</v>
-      </c>
-      <c r="B1619" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1619" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="1620" spans="1:4">
-      <c r="A1620" t="s">
-        <v>564</v>
-      </c>
-      <c r="B1620" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1620" t="s">
-        <v>565</v>
-      </c>
-      <c r="D1620" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="1621" spans="1:4">
-      <c r="A1621" t="s">
-        <v>567</v>
-      </c>
-      <c r="B1621" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1621" t="s">
-        <v>568</v>
-      </c>
-      <c r="D1621" t="s">
-        <v>2842</v>
-      </c>
-    </row>
-    <row r="1622" spans="1:4">
-      <c r="A1622" t="s">
-        <v>570</v>
-      </c>
-      <c r="B1622" t="s">
-        <v>571</v>
-      </c>
-      <c r="D1622" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="1623" spans="1:4">
-      <c r="A1623" t="s">
-        <v>573</v>
-      </c>
-      <c r="B1623" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1623" t="s">
-        <v>574</v>
-      </c>
-      <c r="D1623" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="1624" spans="1:4">
-      <c r="A1624" t="s">
-        <v>576</v>
-      </c>
-      <c r="B1624" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1624" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="1625" spans="1:4">
-      <c r="A1625" t="s">
-        <v>578</v>
-      </c>
-      <c r="B1625" t="s">
-        <v>579</v>
-      </c>
-      <c r="D1625" t="s"/>
-    </row>
-    <row r="1626" spans="1:4">
-      <c r="A1626" t="s">
-        <v>580</v>
-      </c>
-      <c r="B1626" t="s">
-        <v>581</v>
-      </c>
-      <c r="D1626" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="1627" spans="1:4">
-      <c r="A1627" t="s">
-        <v>583</v>
-      </c>
-      <c r="B1627" t="s">
-        <v>584</v>
-      </c>
-      <c r="D1627" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1628" spans="1:4">
-      <c r="A1628" t="s">
-        <v>585</v>
-      </c>
-      <c r="B1628" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1628" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="1629" spans="1:4">
-      <c r="A1629" t="s">
-        <v>587</v>
-      </c>
-      <c r="B1629" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1629" t="s">
-        <v>588</v>
-      </c>
-      <c r="D1629" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="1630" spans="1:4">
-      <c r="A1630" t="s">
-        <v>590</v>
-      </c>
-      <c r="B1630" t="s">
-        <v>591</v>
-      </c>
-      <c r="D1630" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="1631" spans="1:4">
-      <c r="A1631" t="s">
-        <v>592</v>
-      </c>
-      <c r="B1631" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1631" t="s">
-        <v>593</v>
-      </c>
-      <c r="D1631" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="1632" spans="1:4">
-      <c r="A1632" t="s">
-        <v>595</v>
-      </c>
-      <c r="B1632" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1632" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="1633" spans="1:4">
-      <c r="A1633" t="s">
-        <v>597</v>
-      </c>
-      <c r="B1633" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1633" t="s">
-        <v>598</v>
-      </c>
-      <c r="D1633" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="1634" spans="1:4">
-      <c r="A1634" t="s">
-        <v>599</v>
-      </c>
-      <c r="B1634" t="s">
-        <v>600</v>
-      </c>
-      <c r="C1634" t="s">
-        <v>601</v>
-      </c>
-      <c r="D1634" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="1635" spans="1:4">
-      <c r="A1635" t="s">
-        <v>603</v>
-      </c>
-      <c r="B1635" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1635" t="s">
-        <v>604</v>
-      </c>
-      <c r="D1635" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="1636" spans="1:4">
-      <c r="A1636" t="s">
-        <v>606</v>
-      </c>
-      <c r="B1636" t="s">
-        <v>607</v>
-      </c>
-      <c r="D1636" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="1637" spans="1:4">
-      <c r="A1637" t="s">
-        <v>609</v>
-      </c>
-      <c r="B1637" t="s">
-        <v>584</v>
-      </c>
-      <c r="D1637" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="1638" spans="1:4">
-      <c r="A1638" t="s">
-        <v>611</v>
-      </c>
-      <c r="B1638" t="s">
-        <v>612</v>
-      </c>
-      <c r="C1638" t="s">
-        <v>613</v>
-      </c>
-      <c r="D1638" t="s"/>
-    </row>
-    <row r="1639" spans="1:4">
-      <c r="A1639" t="s">
-        <v>614</v>
-      </c>
-      <c r="B1639" t="s">
-        <v>234</v>
-      </c>
-      <c r="C1639" t="s">
-        <v>615</v>
-      </c>
-      <c r="D1639" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="1640" spans="1:4">
-      <c r="A1640" t="s">
-        <v>616</v>
-      </c>
-      <c r="B1640" t="s"/>
-      <c r="D1640" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="1641" spans="1:4">
-      <c r="A1641" t="s">
-        <v>618</v>
-      </c>
-      <c r="B1641" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1641" t="s">
-        <v>619</v>
-      </c>
-      <c r="D1641" t="s">
-        <v>2843</v>
-      </c>
-    </row>
-    <row r="1642" spans="1:4">
-      <c r="A1642" t="s">
-        <v>621</v>
-      </c>
-      <c r="B1642" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1642" t="s">
-        <v>2844</v>
-      </c>
-      <c r="D1642" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="1643" spans="1:4">
-      <c r="A1643" t="s">
-        <v>623</v>
-      </c>
-      <c r="B1643" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1643" t="s">
-        <v>624</v>
-      </c>
-      <c r="D1643" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="1644" spans="1:4">
-      <c r="A1644" t="s">
-        <v>626</v>
-      </c>
-      <c r="B1644" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1644" t="s">
-        <v>2846</v>
-      </c>
-    </row>
-    <row r="1645" spans="1:4">
-      <c r="A1645" t="s">
-        <v>628</v>
-      </c>
-      <c r="B1645" t="s">
-        <v>629</v>
-      </c>
-      <c r="D1645" t="s">
-        <v>2847</v>
-      </c>
-    </row>
-    <row r="1646" spans="1:4">
-      <c r="A1646" t="s">
-        <v>631</v>
-      </c>
-      <c r="B1646" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1646" t="s">
-        <v>632</v>
-      </c>
-      <c r="D1646" t="s"/>
-    </row>
-    <row r="1647" spans="1:4">
-      <c r="A1647" t="s">
-        <v>633</v>
-      </c>
-      <c r="B1647" t="s">
-        <v>634</v>
-      </c>
-      <c r="C1647" t="s">
-        <v>635</v>
-      </c>
-      <c r="D1647" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="1648" spans="1:4">
-      <c r="A1648" t="s">
-        <v>637</v>
-      </c>
-      <c r="B1648" t="s">
-        <v>607</v>
-      </c>
-      <c r="D1648" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="1649" spans="1:4">
-      <c r="A1649" t="s">
-        <v>639</v>
-      </c>
-      <c r="B1649" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1649" t="s">
-        <v>640</v>
-      </c>
-      <c r="D1649" t="s">
-        <v>2848</v>
-      </c>
-    </row>
-    <row r="1650" spans="1:4">
-      <c r="A1650" t="s">
-        <v>642</v>
-      </c>
-      <c r="B1650" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1650" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="1651" spans="1:4">
-      <c r="A1651" t="s">
-        <v>644</v>
-      </c>
-      <c r="B1651" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1651" t="s">
-        <v>645</v>
-      </c>
-      <c r="D1651" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="1652" spans="1:4">
-      <c r="A1652" t="s">
-        <v>647</v>
-      </c>
-      <c r="B1652" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1652" t="s">
-        <v>648</v>
-      </c>
-      <c r="D1652" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1653" spans="1:4">
-      <c r="A1653" t="s">
-        <v>649</v>
-      </c>
-      <c r="B1653" t="s">
-        <v>521</v>
-      </c>
-      <c r="D1653" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="1654" spans="1:4">
-      <c r="A1654" t="s">
-        <v>651</v>
-      </c>
-      <c r="B1654" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1654" t="s">
-        <v>652</v>
-      </c>
-      <c r="D1654" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="1655" spans="1:4">
-      <c r="A1655" t="s">
-        <v>654</v>
-      </c>
-      <c r="B1655" t="s"/>
-      <c r="D1655" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="1656" spans="1:4">
-      <c r="A1656" t="s">
-        <v>656</v>
-      </c>
-      <c r="B1656" t="s">
-        <v>607</v>
-      </c>
-      <c r="D1656" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="1657" spans="1:4">
-      <c r="A1657" t="s">
-        <v>657</v>
-      </c>
-      <c r="B1657" t="s">
-        <v>584</v>
-      </c>
-      <c r="C1657" t="s">
-        <v>658</v>
-      </c>
-      <c r="D1657" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1658" spans="1:4">
-      <c r="A1658" t="s">
-        <v>659</v>
-      </c>
-      <c r="B1658" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1658" t="s">
-        <v>660</v>
-      </c>
-      <c r="D1658" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="1659" spans="1:4">
-      <c r="A1659" t="s">
-        <v>662</v>
-      </c>
-      <c r="B1659" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1659" t="s">
-        <v>663</v>
-      </c>
-      <c r="D1659" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="1660" spans="1:4">
-      <c r="A1660" t="s">
-        <v>665</v>
-      </c>
-      <c r="B1660" t="s">
-        <v>666</v>
-      </c>
-      <c r="D1660" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="1661" spans="1:4">
-      <c r="A1661" t="s">
-        <v>668</v>
-      </c>
-      <c r="B1661" t="s">
-        <v>521</v>
-      </c>
-      <c r="D1661" t="s">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="1662" spans="1:4">
-      <c r="A1662" t="s">
-        <v>670</v>
-      </c>
-      <c r="B1662" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1662" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1663" spans="1:4">
-      <c r="A1663" t="s">
-        <v>671</v>
-      </c>
-      <c r="B1663" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1663" t="s">
-        <v>2850</v>
-      </c>
-      <c r="D1663" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="1664" spans="1:4">
-      <c r="A1664" t="s">
-        <v>674</v>
-      </c>
-      <c r="B1664" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1664" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="1665" spans="1:4">
-      <c r="A1665" t="s">
-        <v>676</v>
-      </c>
-      <c r="B1665" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1665" t="s">
-        <v>677</v>
-      </c>
-      <c r="D1665" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1666" spans="1:4">
-      <c r="A1666" t="s">
-        <v>678</v>
-      </c>
-      <c r="B1666" t="s">
-        <v>679</v>
-      </c>
-      <c r="D1666" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="1667" spans="1:4">
-      <c r="A1667" t="s">
-        <v>681</v>
-      </c>
-      <c r="B1667" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1667" t="s">
-        <v>682</v>
-      </c>
-      <c r="D1667" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="1668" spans="1:4">
-      <c r="A1668" t="s">
-        <v>683</v>
-      </c>
-      <c r="B1668" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1668" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="1669" spans="1:4">
-      <c r="A1669" t="s">
-        <v>685</v>
-      </c>
-      <c r="B1669" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1669" t="s">
-        <v>2851</v>
-      </c>
-    </row>
-    <row r="1670" spans="1:4">
-      <c r="A1670" t="s">
-        <v>687</v>
-      </c>
-      <c r="B1670" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1670" t="s">
-        <v>2852</v>
-      </c>
-    </row>
-    <row r="1671" spans="1:4">
-      <c r="A1671" t="s">
-        <v>689</v>
-      </c>
-      <c r="B1671" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1671" t="s">
-        <v>690</v>
-      </c>
-      <c r="D1671" t="s">
-        <v>2853</v>
-      </c>
-    </row>
-    <row r="1672" spans="1:4">
-      <c r="A1672" t="s">
-        <v>692</v>
-      </c>
-      <c r="B1672" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1672" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="1673" spans="1:4">
-      <c r="A1673" t="s">
-        <v>694</v>
-      </c>
-      <c r="B1673" t="s">
-        <v>584</v>
-      </c>
-      <c r="D1673" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="1674" spans="1:4">
-      <c r="A1674" t="s">
-        <v>696</v>
-      </c>
-      <c r="B1674" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1674" t="s">
-        <v>697</v>
-      </c>
-      <c r="D1674" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="1675" spans="1:4">
-      <c r="A1675" t="s">
-        <v>698</v>
-      </c>
-      <c r="B1675" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1675" t="s">
-        <v>2854</v>
-      </c>
-    </row>
-    <row r="1676" spans="1:4">
-      <c r="A1676" t="s">
-        <v>700</v>
-      </c>
-      <c r="B1676" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1676" t="s">
-        <v>701</v>
-      </c>
-      <c r="D1676" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="1677" spans="1:4">
-      <c r="A1677" t="s">
-        <v>703</v>
-      </c>
-      <c r="B1677" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1677" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="1678" spans="1:4">
-      <c r="A1678" t="s">
-        <v>705</v>
-      </c>
-      <c r="B1678" t="s">
-        <v>521</v>
-      </c>
-      <c r="D1678" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="1679" spans="1:4">
-      <c r="A1679" t="s">
-        <v>707</v>
-      </c>
-      <c r="B1679" t="s">
-        <v>708</v>
-      </c>
-      <c r="D1679" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="1680" spans="1:4">
-      <c r="A1680" t="s">
-        <v>710</v>
-      </c>
-      <c r="B1680" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1680" t="s">
-        <v>690</v>
-      </c>
-      <c r="D1680" t="s">
-        <v>2855</v>
-      </c>
-    </row>
-    <row r="1681" spans="1:4">
-      <c r="A1681" t="s">
-        <v>712</v>
-      </c>
-      <c r="B1681" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1681" t="s">
-        <v>713</v>
-      </c>
-      <c r="D1681" t="s">
-        <v>2856</v>
-      </c>
-    </row>
-    <row r="1682" spans="1:4">
-      <c r="A1682" t="s">
-        <v>715</v>
-      </c>
-      <c r="B1682" t="s">
-        <v>716</v>
-      </c>
-      <c r="D1682" t="s">
-        <v>2857</v>
-      </c>
-    </row>
-    <row r="1683" spans="1:4">
-      <c r="A1683" t="s">
-        <v>718</v>
-      </c>
-      <c r="B1683" t="s">
-        <v>666</v>
-      </c>
-      <c r="D1683" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="1684" spans="1:4">
-      <c r="A1684" t="s">
-        <v>720</v>
-      </c>
-      <c r="B1684" t="s">
-        <v>521</v>
-      </c>
-      <c r="D1684" t="s">
-        <v>2858</v>
-      </c>
-    </row>
-    <row r="1685" spans="1:4">
-      <c r="A1685" t="s">
-        <v>722</v>
-      </c>
-      <c r="B1685" t="s">
-        <v>723</v>
-      </c>
-      <c r="C1685" t="s">
-        <v>724</v>
-      </c>
-      <c r="D1685" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="1686" spans="1:4">
-      <c r="A1686" t="s">
-        <v>726</v>
-      </c>
-      <c r="B1686" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1686" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="1687" spans="1:4">
-      <c r="A1687" t="s">
-        <v>728</v>
-      </c>
-      <c r="B1687" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1687" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="1688" spans="1:4">
-      <c r="A1688" t="s">
-        <v>730</v>
-      </c>
-      <c r="B1688" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1688" t="s">
-        <v>731</v>
-      </c>
-      <c r="D1688" t="s">
-        <v>2859</v>
-      </c>
-    </row>
-    <row r="1689" spans="1:4">
-      <c r="A1689" t="s">
-        <v>733</v>
-      </c>
-      <c r="B1689" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1689" t="s">
-        <v>734</v>
-      </c>
-      <c r="D1689" t="s">
-        <v>2860</v>
-      </c>
-    </row>
-    <row r="1690" spans="1:4">
-      <c r="A1690" t="s">
-        <v>736</v>
-      </c>
-      <c r="B1690" t="s">
-        <v>737</v>
-      </c>
-      <c r="D1690" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="1691" spans="1:4">
-      <c r="A1691" t="s">
-        <v>739</v>
-      </c>
-      <c r="B1691" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1691" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="1692" spans="1:4">
-      <c r="A1692" t="s">
-        <v>741</v>
-      </c>
-      <c r="B1692" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1692" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="1693" spans="1:4">
-      <c r="A1693" t="s">
-        <v>743</v>
-      </c>
-      <c r="B1693" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1693" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="1694" spans="1:4">
-      <c r="A1694" t="s">
-        <v>745</v>
-      </c>
-      <c r="B1694" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1694" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1695" spans="1:4">
-      <c r="A1695" t="s">
-        <v>746</v>
-      </c>
-      <c r="B1695" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1695" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="1696" spans="1:4">
-      <c r="A1696" t="s">
-        <v>748</v>
-      </c>
-      <c r="B1696" t="s">
-        <v>749</v>
-      </c>
-      <c r="C1696" t="s">
-        <v>750</v>
-      </c>
-      <c r="D1696" t="s">
-        <v>2861</v>
-      </c>
-    </row>
-    <row r="1697" spans="1:4">
-      <c r="A1697" t="s">
-        <v>752</v>
-      </c>
-      <c r="B1697" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1697" t="s">
-        <v>753</v>
-      </c>
-      <c r="D1697" t="s">
-        <v>2862</v>
-      </c>
-    </row>
-    <row r="1698" spans="1:4">
-      <c r="A1698" t="s">
-        <v>755</v>
-      </c>
-      <c r="B1698" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1698" t="s">
-        <v>2863</v>
-      </c>
-    </row>
-    <row r="1699" spans="1:4">
-      <c r="A1699" t="s">
-        <v>757</v>
-      </c>
-      <c r="B1699" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1699" t="s">
-        <v>758</v>
-      </c>
-      <c r="D1699" t="s">
-        <v>2864</v>
-      </c>
-    </row>
-    <row r="1700" spans="1:4">
-      <c r="A1700" t="s">
-        <v>760</v>
-      </c>
-      <c r="B1700" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1700" t="s">
-        <v>2865</v>
-      </c>
-    </row>
-    <row r="1701" spans="1:4">
-      <c r="A1701" t="s">
-        <v>760</v>
-      </c>
-      <c r="B1701" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1701" t="s">
-        <v>2866</v>
-      </c>
-    </row>
-    <row r="1702" spans="1:4">
-      <c r="A1702" t="s">
-        <v>763</v>
-      </c>
-      <c r="B1702" t="s">
-        <v>764</v>
-      </c>
-      <c r="C1702" t="s">
-        <v>765</v>
-      </c>
-      <c r="D1702" t="s">
-        <v>2867</v>
-      </c>
-    </row>
-    <row r="1703" spans="1:4">
-      <c r="A1703" t="s">
-        <v>767</v>
-      </c>
-      <c r="B1703" t="s">
-        <v>716</v>
-      </c>
-      <c r="D1703" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="1704" spans="1:4">
-      <c r="A1704" t="s">
-        <v>769</v>
-      </c>
-      <c r="B1704" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1704" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="1705" spans="1:4">
-      <c r="A1705" t="s">
-        <v>770</v>
-      </c>
-      <c r="B1705" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1705" t="s">
-        <v>771</v>
-      </c>
-      <c r="D1705" t="s">
-        <v>2868</v>
-      </c>
-    </row>
-    <row r="1706" spans="1:4">
-      <c r="A1706" t="s">
-        <v>773</v>
-      </c>
-      <c r="B1706" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1706" t="s">
-        <v>774</v>
-      </c>
-      <c r="D1706" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="1707" spans="1:4">
-      <c r="A1707" t="s">
-        <v>776</v>
-      </c>
-      <c r="B1707" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1707" t="s">
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="1708" spans="1:4">
-      <c r="A1708" t="s">
-        <v>778</v>
-      </c>
-      <c r="B1708" t="s">
-        <v>779</v>
-      </c>
-      <c r="C1708" t="s">
-        <v>780</v>
-      </c>
-      <c r="D1708" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1709" spans="1:4">
-      <c r="A1709" t="s">
-        <v>781</v>
-      </c>
-      <c r="B1709" t="s">
-        <v>779</v>
-      </c>
-      <c r="C1709" t="s">
-        <v>780</v>
-      </c>
-      <c r="D1709" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1710" spans="1:4">
-      <c r="A1710" t="s">
-        <v>782</v>
-      </c>
-      <c r="B1710" t="s">
-        <v>783</v>
-      </c>
-      <c r="C1710" t="s">
-        <v>784</v>
-      </c>
-      <c r="D1710" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="1711" spans="1:4">
-      <c r="A1711" t="s">
-        <v>786</v>
-      </c>
-      <c r="B1711" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1711" t="s">
-        <v>787</v>
-      </c>
-      <c r="D1711" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="1712" spans="1:4">
-      <c r="A1712" t="s">
-        <v>789</v>
-      </c>
-      <c r="B1712" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1712" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1713" spans="1:4">
-      <c r="A1713" t="s">
-        <v>790</v>
-      </c>
-      <c r="B1713" t="s">
-        <v>234</v>
-      </c>
-      <c r="C1713" t="s">
-        <v>791</v>
-      </c>
-      <c r="D1713" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="1714" spans="1:4">
-      <c r="A1714" t="s">
-        <v>792</v>
-      </c>
-      <c r="B1714" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1714" t="s">
-        <v>793</v>
-      </c>
-      <c r="D1714" t="s">
-        <v>2870</v>
-      </c>
-    </row>
-    <row r="1715" spans="1:4">
-      <c r="A1715" t="s">
-        <v>795</v>
-      </c>
-      <c r="B1715" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1715" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="1716" spans="1:4">
-      <c r="A1716" t="s">
-        <v>797</v>
-      </c>
-      <c r="B1716" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1716" t="s">
-        <v>798</v>
-      </c>
-      <c r="D1716" t="s">
-        <v>2871</v>
-      </c>
-    </row>
-    <row r="1717" spans="1:4">
-      <c r="A1717" t="s">
-        <v>800</v>
-      </c>
-      <c r="B1717" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1717" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="1718" spans="1:4">
-      <c r="A1718" t="s">
-        <v>802</v>
-      </c>
-      <c r="B1718" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1718" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="1719" spans="1:4">
-      <c r="A1719" t="s">
-        <v>804</v>
-      </c>
-      <c r="B1719" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1719" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="1720" spans="1:4">
-      <c r="A1720" t="s">
-        <v>806</v>
-      </c>
-      <c r="B1720" t="s">
-        <v>807</v>
-      </c>
-      <c r="C1720" t="s">
-        <v>808</v>
-      </c>
-      <c r="D1720" t="s">
-        <v>2872</v>
-      </c>
-    </row>
-    <row r="1721" spans="1:4">
-      <c r="A1721" t="s">
-        <v>810</v>
-      </c>
-      <c r="B1721" t="s">
-        <v>811</v>
-      </c>
-      <c r="C1721" t="s">
-        <v>812</v>
-      </c>
-      <c r="D1721" t="s">
-        <v>2873</v>
-      </c>
-    </row>
-    <row r="1722" spans="1:4">
-      <c r="A1722" t="s">
-        <v>814</v>
-      </c>
-      <c r="B1722" t="s">
-        <v>815</v>
-      </c>
-      <c r="C1722" t="s">
-        <v>816</v>
-      </c>
-      <c r="D1722" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="1723" spans="1:4">
-      <c r="A1723" t="s">
-        <v>817</v>
-      </c>
-      <c r="B1723" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1723" t="s">
-        <v>818</v>
-      </c>
-      <c r="D1723" t="s">
-        <v>2874</v>
-      </c>
-    </row>
-    <row r="1724" spans="1:4">
-      <c r="A1724" t="s">
-        <v>820</v>
-      </c>
-      <c r="B1724" t="s">
-        <v>783</v>
-      </c>
-      <c r="C1724" t="s">
-        <v>784</v>
-      </c>
-      <c r="D1724" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="1725" spans="1:4">
-      <c r="A1725" t="s">
-        <v>821</v>
-      </c>
-      <c r="B1725" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1725" t="s">
-        <v>2875</v>
-      </c>
-    </row>
-    <row r="1726" spans="1:4">
-      <c r="A1726" t="s">
-        <v>823</v>
-      </c>
-      <c r="B1726" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1726" t="s">
-        <v>824</v>
-      </c>
-      <c r="D1726" t="s">
-        <v>2876</v>
-      </c>
-    </row>
-    <row r="1727" spans="1:4">
-      <c r="A1727" t="s">
-        <v>826</v>
-      </c>
-      <c r="B1727" t="s">
-        <v>827</v>
-      </c>
-      <c r="D1727" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="1728" spans="1:4">
-      <c r="A1728" t="s">
-        <v>828</v>
-      </c>
-      <c r="B1728" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1728" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="1729" spans="1:4">
-      <c r="A1729" t="s">
-        <v>830</v>
-      </c>
-      <c r="B1729" t="s">
-        <v>831</v>
-      </c>
-      <c r="C1729" t="s">
-        <v>832</v>
-      </c>
-      <c r="D1729" t="s"/>
-    </row>
-    <row r="1730" spans="1:4">
-      <c r="A1730" t="s">
-        <v>833</v>
-      </c>
-      <c r="B1730" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1730" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="1731" spans="1:4">
-      <c r="A1731" t="s">
-        <v>835</v>
-      </c>
-      <c r="B1731" t="s">
-        <v>836</v>
-      </c>
-      <c r="D1731" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="1732" spans="1:4">
-      <c r="A1732" t="s">
-        <v>838</v>
-      </c>
-      <c r="B1732" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1732" t="s">
-        <v>839</v>
-      </c>
-      <c r="D1732" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="1733" spans="1:4">
-      <c r="A1733" t="s">
-        <v>841</v>
-      </c>
-      <c r="B1733" t="s">
-        <v>842</v>
-      </c>
-      <c r="C1733" t="s">
-        <v>843</v>
-      </c>
-      <c r="D1733" t="s">
-        <v>2877</v>
-      </c>
-    </row>
-    <row r="1734" spans="1:4">
-      <c r="A1734" t="s">
-        <v>845</v>
-      </c>
-      <c r="B1734" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1734" t="s">
-        <v>2878</v>
-      </c>
-    </row>
-    <row r="1735" spans="1:4">
-      <c r="A1735" t="s">
-        <v>847</v>
-      </c>
-      <c r="B1735" t="s">
-        <v>848</v>
-      </c>
-      <c r="C1735" t="s">
-        <v>849</v>
-      </c>
-      <c r="D1735" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="1736" spans="1:4">
-      <c r="A1736" t="s">
-        <v>851</v>
-      </c>
-      <c r="B1736" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1736" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="1737" spans="1:4">
-      <c r="A1737" t="s">
-        <v>853</v>
-      </c>
-      <c r="B1737" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1737" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="1738" spans="1:4">
-      <c r="A1738" t="s">
-        <v>855</v>
-      </c>
-      <c r="B1738" t="s">
-        <v>856</v>
-      </c>
-      <c r="C1738" t="s">
-        <v>857</v>
-      </c>
-      <c r="D1738" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="1739" spans="1:4">
-      <c r="A1739" t="s">
-        <v>858</v>
-      </c>
-      <c r="B1739" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1739" t="s">
-        <v>859</v>
-      </c>
-      <c r="D1739" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="1740" spans="1:4">
-      <c r="A1740" t="s">
-        <v>860</v>
-      </c>
-      <c r="B1740" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1740" t="s">
-        <v>2879</v>
-      </c>
-    </row>
-    <row r="1741" spans="1:4">
-      <c r="A1741" t="s">
-        <v>862</v>
-      </c>
-      <c r="B1741" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1741" t="s">
-        <v>863</v>
-      </c>
-      <c r="D1741" t="s">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="1742" spans="1:4">
-      <c r="A1742" t="s">
-        <v>865</v>
-      </c>
-      <c r="B1742" t="s">
-        <v>866</v>
-      </c>
-      <c r="C1742" t="s">
-        <v>867</v>
-      </c>
-      <c r="D1742" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="1743" spans="1:4">
-      <c r="A1743" t="s">
-        <v>869</v>
-      </c>
-      <c r="B1743" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1743" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="1744" spans="1:4">
-      <c r="A1744" t="s">
-        <v>870</v>
-      </c>
-      <c r="B1744" t="s">
-        <v>871</v>
-      </c>
-      <c r="C1744" t="s">
-        <v>872</v>
-      </c>
-      <c r="D1744" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="1745" spans="1:4">
-      <c r="A1745" t="s">
-        <v>873</v>
-      </c>
-      <c r="B1745" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1745" t="s">
-        <v>874</v>
-      </c>
-      <c r="D1745" t="s">
-        <v>2881</v>
-      </c>
-    </row>
-    <row r="1746" spans="1:4">
-      <c r="A1746" t="s">
-        <v>639</v>
-      </c>
-      <c r="B1746" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1746" t="s">
-        <v>640</v>
-      </c>
-      <c r="D1746" t="s">
-        <v>2848</v>
-      </c>
-    </row>
-    <row r="1747" spans="1:4">
-      <c r="A1747" t="s">
-        <v>876</v>
-      </c>
-      <c r="B1747" t="s">
-        <v>877</v>
-      </c>
-      <c r="C1747" t="s">
-        <v>878</v>
-      </c>
-      <c r="D1747" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="1748" spans="1:4">
-      <c r="A1748" t="s">
-        <v>880</v>
-      </c>
-      <c r="B1748" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1748" t="s">
-        <v>2882</v>
-      </c>
-    </row>
-    <row r="1749" spans="1:4">
-      <c r="A1749" t="s">
-        <v>882</v>
-      </c>
-      <c r="B1749" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1749" t="s">
-        <v>2883</v>
-      </c>
-    </row>
-    <row r="1750" spans="1:4">
-      <c r="A1750" t="s">
-        <v>884</v>
-      </c>
-      <c r="B1750" t="s">
-        <v>324</v>
-      </c>
-      <c r="C1750" t="s">
-        <v>885</v>
-      </c>
-      <c r="D1750" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1751" spans="1:4">
-      <c r="A1751" t="s">
-        <v>886</v>
-      </c>
-      <c r="B1751" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1751" t="s">
-        <v>887</v>
-      </c>
-      <c r="D1751" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="1752" spans="1:4">
-      <c r="A1752" t="s">
-        <v>888</v>
-      </c>
-      <c r="B1752" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1752" t="s">
-        <v>889</v>
-      </c>
-      <c r="D1752" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="1753" spans="1:4">
-      <c r="A1753" t="s">
-        <v>890</v>
-      </c>
-      <c r="B1753" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1753" t="s">
-        <v>891</v>
-      </c>
-      <c r="D1753" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1754" spans="1:4">
-      <c r="A1754" t="s">
-        <v>892</v>
-      </c>
-      <c r="B1754" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1754" t="s">
-        <v>893</v>
-      </c>
-      <c r="D1754" t="s">
-        <v>2884</v>
-      </c>
-    </row>
-    <row r="1755" spans="1:4">
-      <c r="A1755" t="s">
-        <v>895</v>
-      </c>
-      <c r="B1755" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1755" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="1756" spans="1:4">
-      <c r="A1756" t="s">
-        <v>896</v>
-      </c>
-      <c r="B1756" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1756" t="s">
-        <v>2885</v>
-      </c>
-    </row>
-    <row r="1757" spans="1:4">
-      <c r="A1757" t="s">
-        <v>898</v>
-      </c>
-      <c r="B1757" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1757" t="s">
-        <v>899</v>
-      </c>
-      <c r="D1757" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="1758" spans="1:4">
-      <c r="A1758" t="s">
-        <v>901</v>
-      </c>
-      <c r="B1758" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1758" t="s">
-        <v>753</v>
-      </c>
-      <c r="D1758" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1759" spans="1:4">
-      <c r="A1759" t="s">
-        <v>902</v>
-      </c>
-      <c r="B1759" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1759" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="1760" spans="1:4">
-      <c r="A1760" t="s">
-        <v>904</v>
-      </c>
-      <c r="B1760" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1760" t="s">
-        <v>905</v>
-      </c>
-      <c r="D1760" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="1761" spans="1:4">
-      <c r="A1761" t="s">
-        <v>907</v>
-      </c>
-      <c r="B1761" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1761" t="s">
-        <v>908</v>
-      </c>
-      <c r="D1761" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="1762" spans="1:4">
-      <c r="A1762" t="s">
-        <v>910</v>
-      </c>
-      <c r="B1762" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1762" t="s">
-        <v>911</v>
-      </c>
-      <c r="D1762" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="1763" spans="1:4">
-      <c r="A1763" t="s">
-        <v>913</v>
-      </c>
-      <c r="B1763" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1763" t="s">
-        <v>914</v>
-      </c>
-      <c r="D1763" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="1764" spans="1:4">
-      <c r="A1764" t="s">
-        <v>915</v>
-      </c>
-      <c r="B1764" t="s">
-        <v>737</v>
-      </c>
-      <c r="D1764" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="1765" spans="1:4">
-      <c r="A1765" t="s">
-        <v>917</v>
-      </c>
-      <c r="B1765" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1765" t="s">
-        <v>918</v>
-      </c>
-      <c r="D1765" t="s">
-        <v>2886</v>
-      </c>
-    </row>
-    <row r="1766" spans="1:4">
-      <c r="A1766" t="s">
-        <v>920</v>
-      </c>
-      <c r="B1766" t="s">
-        <v>921</v>
-      </c>
-      <c r="C1766" t="s">
-        <v>922</v>
-      </c>
-      <c r="D1766" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="1767" spans="1:4">
-      <c r="A1767" t="s">
-        <v>924</v>
-      </c>
-      <c r="B1767" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1767" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="1768" spans="1:4">
-      <c r="A1768" t="s">
-        <v>925</v>
-      </c>
-      <c r="B1768" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1768" t="s">
-        <v>926</v>
-      </c>
-      <c r="D1768" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="1769" spans="1:4">
-      <c r="A1769" t="s">
-        <v>928</v>
-      </c>
-      <c r="B1769" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1769" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="1770" spans="1:4">
-      <c r="A1770" t="s">
-        <v>930</v>
-      </c>
-      <c r="B1770" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1770" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="1771" spans="1:4">
-      <c r="A1771" t="s">
-        <v>932</v>
-      </c>
-      <c r="B1771" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1771" t="s">
-        <v>2887</v>
-      </c>
-    </row>
-    <row r="1772" spans="1:4">
-      <c r="A1772" t="s">
-        <v>934</v>
-      </c>
-      <c r="B1772" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1772" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="1773" spans="1:4">
-      <c r="A1773" t="s">
-        <v>936</v>
-      </c>
-      <c r="B1773" t="s">
-        <v>937</v>
-      </c>
-      <c r="D1773" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="1774" spans="1:4">
-      <c r="A1774" t="s">
-        <v>938</v>
-      </c>
-      <c r="B1774" t="s">
-        <v>939</v>
-      </c>
-      <c r="C1774" t="s">
-        <v>940</v>
-      </c>
-      <c r="D1774" t="s">
-        <v>2888</v>
-      </c>
-    </row>
-    <row r="1775" spans="1:4">
-      <c r="A1775" t="s">
-        <v>942</v>
-      </c>
-      <c r="B1775" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1775" t="s">
-        <v>943</v>
-      </c>
-      <c r="D1775" t="s">
-        <v>2889</v>
-      </c>
-    </row>
-    <row r="1776" spans="1:4">
-      <c r="A1776" t="s">
-        <v>945</v>
-      </c>
-      <c r="B1776" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1776" t="s">
-        <v>946</v>
-      </c>
-      <c r="D1776" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="1777" spans="1:4">
-      <c r="A1777" t="s">
-        <v>947</v>
-      </c>
-      <c r="B1777" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1777" t="s">
-        <v>948</v>
-      </c>
-      <c r="D1777" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="1778" spans="1:4">
-      <c r="A1778" t="s">
-        <v>950</v>
-      </c>
-      <c r="B1778" t="s">
-        <v>951</v>
-      </c>
-      <c r="D1778" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="1779" spans="1:4">
-      <c r="A1779" t="s">
-        <v>953</v>
-      </c>
-      <c r="B1779" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1779" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="1780" spans="1:4">
-      <c r="A1780" t="s">
-        <v>955</v>
-      </c>
-      <c r="B1780" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1780" t="s">
-        <v>2890</v>
-      </c>
-    </row>
-    <row r="1781" spans="1:4">
-      <c r="A1781" t="s">
-        <v>957</v>
-      </c>
-      <c r="B1781" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1781" t="s">
-        <v>2891</v>
-      </c>
-    </row>
-    <row r="1782" spans="1:4">
-      <c r="A1782" t="s">
-        <v>959</v>
-      </c>
-      <c r="B1782" t="s">
-        <v>960</v>
-      </c>
-      <c r="C1782" t="s">
-        <v>961</v>
-      </c>
-      <c r="D1782" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="1783" spans="1:4">
-      <c r="A1783" t="s">
-        <v>962</v>
-      </c>
-      <c r="B1783" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1783" t="s">
-        <v>963</v>
-      </c>
-      <c r="D1783" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="1784" spans="1:4">
-      <c r="A1784" t="s">
-        <v>965</v>
-      </c>
-      <c r="B1784" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1784" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="1785" spans="1:4">
-      <c r="A1785" t="s">
-        <v>967</v>
-      </c>
-      <c r="B1785" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1785" t="s">
-        <v>2892</v>
-      </c>
-    </row>
-    <row r="1786" spans="1:4">
-      <c r="A1786" t="s">
-        <v>969</v>
-      </c>
-      <c r="B1786" t="s">
-        <v>679</v>
-      </c>
-      <c r="D1786" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="1787" spans="1:4">
-      <c r="A1787" t="s">
-        <v>970</v>
-      </c>
-      <c r="B1787" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1787" t="s">
-        <v>971</v>
-      </c>
-      <c r="D1787" t="s">
-        <v>2893</v>
-      </c>
-    </row>
-    <row r="1788" spans="1:4">
-      <c r="A1788" t="s">
-        <v>973</v>
-      </c>
-      <c r="B1788" t="s">
-        <v>827</v>
-      </c>
-      <c r="D1788" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="1789" spans="1:4">
-      <c r="A1789" t="s">
-        <v>810</v>
-      </c>
-      <c r="B1789" t="s">
-        <v>811</v>
-      </c>
-      <c r="C1789" t="s">
-        <v>812</v>
-      </c>
-      <c r="D1789" t="s">
-        <v>2873</v>
-      </c>
-    </row>
-    <row r="1790" spans="1:4">
-      <c r="A1790" t="s">
-        <v>975</v>
-      </c>
-      <c r="B1790" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1790" t="s">
-        <v>976</v>
-      </c>
-      <c r="D1790" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="1791" spans="1:4">
-      <c r="A1791" t="s">
-        <v>978</v>
-      </c>
-      <c r="B1791" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1791" t="s">
-        <v>979</v>
-      </c>
-      <c r="D1791" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1792" spans="1:4">
-      <c r="A1792" t="s">
-        <v>981</v>
-      </c>
-      <c r="B1792" t="s">
-        <v>982</v>
-      </c>
-      <c r="D1792" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="1793" spans="1:4">
-      <c r="A1793" t="s">
-        <v>984</v>
-      </c>
-      <c r="B1793" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1793" t="s">
-        <v>985</v>
-      </c>
-      <c r="D1793" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="1794" spans="1:4">
-      <c r="A1794" t="s">
-        <v>987</v>
-      </c>
-      <c r="B1794" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1794" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="1795" spans="1:4">
-      <c r="A1795" t="s">
-        <v>989</v>
-      </c>
-      <c r="B1795" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1795" t="s">
-        <v>2894</v>
-      </c>
-    </row>
-    <row r="1796" spans="1:4">
-      <c r="A1796" t="s">
-        <v>991</v>
-      </c>
-      <c r="B1796" t="s">
-        <v>992</v>
-      </c>
-      <c r="C1796" t="s">
-        <v>993</v>
-      </c>
-      <c r="D1796" t="s">
-        <v>2838</v>
-      </c>
-    </row>
-    <row r="1797" spans="1:4">
-      <c r="A1797" t="s">
-        <v>994</v>
-      </c>
-      <c r="B1797" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1797" t="s">
-        <v>995</v>
-      </c>
-      <c r="D1797" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="1798" spans="1:4">
-      <c r="A1798" t="s">
-        <v>996</v>
-      </c>
-      <c r="B1798" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1798" t="s">
-        <v>997</v>
-      </c>
-      <c r="D1798" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="1799" spans="1:4">
-      <c r="A1799" t="s">
-        <v>999</v>
-      </c>
-      <c r="B1799" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1799" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D1799" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="1800" spans="1:4">
-      <c r="A1800" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B1800" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1800" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="1801" spans="1:4">
-      <c r="A1801" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B1801" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C1801" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D1801" t="s">
-        <v>2895</v>
-      </c>
-    </row>
-    <row r="1802" spans="1:4">
-      <c r="A1802" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B1802" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D1802" t="s"/>
-    </row>
-    <row r="1803" spans="1:4">
-      <c r="A1803" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B1803" t="s"/>
-      <c r="D1803" t="s"/>
-    </row>
-    <row r="1804" spans="1:4">
-      <c r="A1804" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B1804" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D1804" t="s"/>
-    </row>
-    <row r="1805" spans="1:4">
-      <c r="A1805" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B1805" t="s"/>
-      <c r="D1805" t="s"/>
-    </row>
-    <row r="1806" spans="1:4">
-      <c r="A1806" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B1806" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D1806" t="s"/>
-    </row>
-    <row r="1807" spans="1:4">
-      <c r="A1807" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B1807" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D1807" t="s">
-        <v>2896</v>
-      </c>
-    </row>
-    <row r="1808" spans="1:4">
-      <c r="A1808" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B1808" t="s"/>
-      <c r="D1808" t="s"/>
-    </row>
-    <row r="1809" spans="1:4">
-      <c r="A1809" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B1809" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C1809" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D1809" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="1810" spans="1:4">
-      <c r="A1810" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B1810" t="s"/>
-      <c r="D1810" t="s"/>
-    </row>
-    <row r="1811" spans="1:4">
-      <c r="A1811" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B1811" t="s">
-        <v>521</v>
-      </c>
-      <c r="D1811" t="s"/>
-    </row>
-    <row r="1812" spans="1:4">
-      <c r="A1812" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B1812" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1812" t="s"/>
-    </row>
-    <row r="1813" spans="1:4">
-      <c r="A1813" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B1813" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1813" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1814" spans="1:4">
-      <c r="A1814" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B1814" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1814" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="1815" spans="1:4">
-      <c r="A1815" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B1815" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D1815" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="1816" spans="1:4">
-      <c r="A1816" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B1816" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1816" t="s"/>
-    </row>
-    <row r="1817" spans="1:4">
-      <c r="A1817" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B1817" t="s"/>
-      <c r="D1817" t="s"/>
-    </row>
-    <row r="1818" spans="1:4">
-      <c r="A1818" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B1818" t="s"/>
-      <c r="D1818" t="s"/>
-    </row>
-    <row r="1819" spans="1:4">
-      <c r="A1819" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B1819" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D1819" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="1820" spans="1:4">
-      <c r="A1820" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B1820" t="s"/>
-      <c r="D1820" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="1821" spans="1:4">
-      <c r="A1821" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B1821" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D1821" t="s"/>
-    </row>
-    <row r="1822" spans="1:4">
-      <c r="A1822" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B1822" t="s">
-        <v>521</v>
-      </c>
-      <c r="D1822" t="s"/>
-    </row>
-    <row r="1823" spans="1:4">
-      <c r="A1823" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B1823" t="s">
-        <v>521</v>
-      </c>
-      <c r="D1823" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="1824" spans="1:4">
-      <c r="A1824" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B1824" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1824" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="1825" spans="1:4">
-      <c r="A1825" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B1825" t="s"/>
-      <c r="D1825" t="s"/>
-    </row>
-    <row r="1826" spans="1:4">
-      <c r="A1826" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B1826" t="s"/>
-      <c r="D1826" t="s"/>
-    </row>
-    <row r="1827" spans="1:4">
-      <c r="A1827" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B1827" t="s"/>
-      <c r="D1827" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="1828" spans="1:4">
-      <c r="A1828" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B1828" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1828" t="s"/>
-    </row>
-    <row r="1829" spans="1:4">
-      <c r="A1829" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B1829" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C1829" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D1829" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="1830" spans="1:4">
-      <c r="A1830" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B1830" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1830" t="s"/>
-    </row>
-    <row r="1831" spans="1:4">
-      <c r="A1831" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B1831" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C1831" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D1831" t="s"/>
-    </row>
-    <row r="1832" spans="1:4">
-      <c r="A1832" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B1832" t="s">
-        <v>607</v>
-      </c>
-      <c r="D1832" t="s"/>
-    </row>
-    <row r="1833" spans="1:4">
-      <c r="A1833" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B1833" t="s"/>
-      <c r="D1833" t="s"/>
-    </row>
-    <row r="1834" spans="1:4">
-      <c r="A1834" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B1834" t="s">
-        <v>607</v>
-      </c>
-      <c r="D1834" t="s"/>
-    </row>
-    <row r="1835" spans="1:4">
-      <c r="A1835" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B1835" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1835" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="1836" spans="1:4">
-      <c r="A1836" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B1836" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D1836" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="1837" spans="1:4">
-      <c r="A1837" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B1837" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1837" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="1838" spans="1:4">
-      <c r="A1838" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B1838" t="s"/>
-      <c r="D1838" t="s"/>
-    </row>
-    <row r="1839" spans="1:4">
-      <c r="A1839" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B1839" t="s">
-        <v>521</v>
-      </c>
-      <c r="D1839" t="s"/>
-    </row>
-    <row r="1840" spans="1:4">
-      <c r="A1840" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B1840" t="s"/>
-      <c r="D1840" t="s"/>
-    </row>
-    <row r="1841" spans="1:4">
-      <c r="A1841" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B1841" t="s"/>
-      <c r="D1841" t="s"/>
-    </row>
-    <row r="1842" spans="1:4">
-      <c r="A1842" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B1842" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D1842" t="s">
-        <v>2898</v>
-      </c>
-    </row>
-    <row r="1843" spans="1:4">
-      <c r="A1843" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B1843" t="s">
-        <v>512</v>
-      </c>
-      <c r="D1843" t="s"/>
-    </row>
-    <row r="1844" spans="1:4">
-      <c r="A1844" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B1844" t="s">
-        <v>512</v>
-      </c>
-      <c r="D1844" t="s"/>
-    </row>
-    <row r="1845" spans="1:4">
-      <c r="A1845" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B1845" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C1845" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D1845" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="1846" spans="1:4">
-      <c r="A1846" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B1846" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D1846" t="s"/>
-    </row>
-    <row r="1847" spans="1:4">
-      <c r="A1847" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B1847" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1847" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D1847" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="1848" spans="1:4">
-      <c r="A1848" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B1848" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D1848" t="s"/>
-    </row>
-    <row r="1849" spans="1:4">
-      <c r="A1849" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B1849" t="s">
-        <v>512</v>
-      </c>
-      <c r="D1849" t="s"/>
-    </row>
-    <row r="1850" spans="1:4">
-      <c r="A1850" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B1850" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C1850" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D1850" t="s"/>
-    </row>
-    <row r="1851" spans="1:4">
-      <c r="A1851" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B1851" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1851" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="1852" spans="1:4">
-      <c r="A1852" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B1852" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C1852" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D1852" t="s"/>
-    </row>
-    <row r="1853" spans="1:4">
-      <c r="A1853" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B1853" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D1853" t="s">
-        <v>2899</v>
-      </c>
-    </row>
-    <row r="1854" spans="1:4">
-      <c r="A1854" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B1854" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1854" t="s">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="1855" spans="1:4">
-      <c r="A1855" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B1855" t="s"/>
-      <c r="D1855" t="s"/>
-    </row>
-    <row r="1856" spans="1:4">
-      <c r="A1856" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B1856" t="s">
-        <v>521</v>
-      </c>
-      <c r="D1856" t="s"/>
-    </row>
-    <row r="1857" spans="1:4">
-      <c r="A1857" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B1857" t="s"/>
-      <c r="D1857" t="s"/>
-    </row>
-    <row r="1858" spans="1:4">
-      <c r="A1858" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B1858" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1858" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="1859" spans="1:4">
-      <c r="A1859" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B1859" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D1859" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="1860" spans="1:4">
-      <c r="A1860" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B1860" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1860" t="s"/>
-    </row>
-    <row r="1861" spans="1:4">
-      <c r="A1861" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B1861" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1861" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="1862" spans="1:4">
-      <c r="A1862" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B1862" t="s"/>
-      <c r="D1862" t="s"/>
-    </row>
-    <row r="1863" spans="1:4">
-      <c r="A1863" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B1863" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C1863" t="s">
-        <v>2901</v>
-      </c>
-      <c r="D1863" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="1864" spans="1:4">
-      <c r="A1864" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B1864" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C1864" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D1864" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="1865" spans="1:4">
-      <c r="A1865" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B1865" t="s">
-        <v>716</v>
-      </c>
-      <c r="D1865" t="s">
-        <v>2902</v>
-      </c>
-    </row>
-    <row r="1866" spans="1:4">
-      <c r="A1866" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B1866" t="s"/>
-      <c r="D1866" t="s"/>
-    </row>
-    <row r="1867" spans="1:4">
-      <c r="A1867" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B1867" t="s"/>
-      <c r="D1867" t="s"/>
-    </row>
-    <row r="1868" spans="1:4">
-      <c r="A1868" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B1868" t="s"/>
-      <c r="D1868" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="1869" spans="1:4">
-      <c r="A1869" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B1869" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1869" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D1869" t="s"/>
-    </row>
-    <row r="1870" spans="1:4">
-      <c r="A1870" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B1870" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C1870" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D1870" t="s"/>
-    </row>
-    <row r="1871" spans="1:4">
-      <c r="A1871" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B1871" t="s">
-        <v>521</v>
-      </c>
-      <c r="D1871" t="s"/>
-    </row>
-    <row r="1872" spans="1:4">
-      <c r="A1872" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B1872" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1872" t="s"/>
-    </row>
-    <row r="1873" spans="1:4">
-      <c r="A1873" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B1873" t="s"/>
-      <c r="D1873" t="s"/>
-    </row>
-    <row r="1874" spans="1:4">
-      <c r="A1874" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B1874" t="s"/>
-      <c r="D1874" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="1875" spans="1:4">
-      <c r="A1875" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B1875" t="s"/>
-      <c r="D1875" t="s"/>
-    </row>
-    <row r="1876" spans="1:4">
-      <c r="A1876" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B1876" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D1876" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="1877" spans="1:4">
-      <c r="A1877" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B1877" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C1877" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D1877" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="1878" spans="1:4">
-      <c r="A1878" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B1878" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1878" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="1879" spans="1:4">
-      <c r="A1879" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B1879" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D1879" t="s">
-        <v>2903</v>
-      </c>
-    </row>
-    <row r="1880" spans="1:4">
-      <c r="A1880" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B1880" t="s"/>
-      <c r="D1880" t="s"/>
-    </row>
-    <row r="1881" spans="1:4">
-      <c r="A1881" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B1881" t="s"/>
-      <c r="D1881" t="s"/>
-    </row>
-    <row r="1882" spans="1:4">
-      <c r="A1882" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B1882" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C1882" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D1882" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="1883" spans="1:4">
-      <c r="A1883" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B1883" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1883" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="1884" spans="1:4">
-      <c r="A1884" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B1884" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D1884" t="s"/>
-    </row>
-    <row r="1885" spans="1:4">
-      <c r="A1885" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B1885" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1885" t="s"/>
-    </row>
-    <row r="1886" spans="1:4">
-      <c r="A1886" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B1886" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C1886" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D1886" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="1887" spans="1:4">
-      <c r="A1887" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B1887" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D1887" t="s"/>
-    </row>
-    <row r="1888" spans="1:4">
-      <c r="A1888" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B1888" t="s"/>
-      <c r="D1888" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="1889" spans="1:4">
-      <c r="A1889" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B1889" t="s"/>
-      <c r="D1889" t="s"/>
-    </row>
-    <row r="1890" spans="1:4">
-      <c r="A1890" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B1890" t="s">
-        <v>512</v>
-      </c>
-      <c r="D1890" t="s"/>
-    </row>
-    <row r="1891" spans="1:4">
-      <c r="A1891" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B1891" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C1891" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D1891" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="1892" spans="1:4">
-      <c r="A1892" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B1892" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1892" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D1892" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="1893" spans="1:4">
-      <c r="A1893" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B1893" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D1893" t="s"/>
-    </row>
-    <row r="1894" spans="1:4">
-      <c r="A1894" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B1894" t="s"/>
-      <c r="D1894" t="s"/>
-    </row>
-    <row r="1895" spans="1:4">
-      <c r="A1895" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B1895" t="s"/>
-      <c r="D1895" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="1896" spans="1:4">
-      <c r="A1896" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B1896" t="s"/>
-      <c r="D1896" t="s"/>
-    </row>
-    <row r="1897" spans="1:4">
-      <c r="A1897" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B1897" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C1897" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D1897" t="s">
-        <v>2904</v>
-      </c>
-    </row>
-    <row r="1898" spans="1:4">
-      <c r="A1898" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B1898" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D1898" t="s"/>
-    </row>
-    <row r="1899" spans="1:4">
-      <c r="A1899" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B1899" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1899" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D1899" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="1900" spans="1:4">
-      <c r="A1900" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B1900" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1900" t="s"/>
-    </row>
-    <row r="1901" spans="1:4">
-      <c r="A1901" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B1901" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1901" t="s">
-        <v>1183</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/task2_train_reformat_cleaned.xlsx
+++ b/data/task2_train_reformat_cleaned.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1997">
   <si>
     <t>原文</t>
   </si>
@@ -2888,7 +2888,7 @@
     <t>右锁骨上,左上气管旁,纵隔及右肺门,后腹膜淋巴结</t>
   </si>
   <si>
-    <t>右肺癌术后右膈肌转移瘤术后化疗后及靶向治疗复查，对比2016-08-26片：右肺下叶术后缺失，局部未见明确复发。右侧胸膜增厚、粘连，同前相仿。左侧锁骨上窝淋巴结较前变化不大。肝囊肿。双肾囊肿。肝门区、门腔间隙、腹膜后淋巴结，考虑转移性淋巴结，部分较前缩小。右侧结肠旁沟结节状软组织灶，考虑转移可能性大。右肺癌术后右膈肌转移瘤术后化疗后及靶向治疗复查，对比2016-08-26片：右肺下叶术后缺失，术区未见明确异常密度灶及强化影。右残肺充气良好，余双肺野未见明显病变；气管及残余支气管分支通畅。左侧锁骨上窝见数个小淋巴结，较大者短径约6MM，边界清晰，增强扫描轻度强化，同前相仿。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液，右侧胸膜增厚、粘连，同前相仿。肝脏形态、各叶比例未见异常，肝S6、S7见囊性灶，较大者约12MM×11MM，余肝内未见明确异常密度影。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾上腺未见异常。双肾见小囊性低密度灶，大小约7MM×6MM，边清，密度均匀，增强扫描未见强化。肝门区、门静脉-腔静脉间隙、腹主动脉与下腔静脉之间、左肾静脉后方见多发肿大淋巴结，部分相互融合，较大者约为26MM×0MM，边欠清，增强扫描可见不均匀强化，其内可见不规则低密度区，较前缩小。右侧结肠旁沟见结节状软组织灶，大小约9MM×10MM。肠系膜欠清楚，见较多索条影。右侧部分肋骨呈术后改变；余扫描范围内骨质未见明确骨质破坏。</t>
+    <t>右肺癌术后右膈肌转移瘤术后化疗后及靶向治疗复查，对比2016-08-26片：右肺下叶术后缺失，局部未见明确复发。右侧胸膜增厚、粘连，同前相仿。左侧锁骨上窝淋巴结较前变化不大。肝囊肿。双肾囊肿。肝门区、门腔间隙、腹膜后淋巴结，，考虑转移性淋巴结，部分较前缩小。右侧结肠旁沟结节状软组织灶，考虑转移可能性大。右肺癌术后右膈肌转移瘤术后化疗后及靶向治疗复查，对比2016-08-26片：右肺下叶术后缺失，术区未见明确异常密度灶及强化影。右残肺充气良好，余双肺野未见明显病变；气管及残余支气管分支通畅。左侧锁骨上窝见数个小淋巴结，较大者短径约6MM，边界清晰，增强扫描轻度强化，同前相仿。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液，右侧胸膜增厚、粘连，同前相仿。肝脏形态、各叶比例未见异常，肝S6、S7见囊性灶，较大者约12MM×11MM，余肝内未见明确异常密度影。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾上腺未见异常。双肾见小囊性低密度灶，大小约7MM×6MM，边清，密度均匀，增强扫描未见强化。肝门区、门静脉-腔静脉间隙、腹主动脉与下腔静脉之间、左肾静脉后方见多发肿大淋巴结，部分相互融合，较大者约为26MM×0MM，边欠清，增强扫描可见不均匀强化，其内可见不规则低密度区，较前缩小。右侧结肠旁沟见结节状软组织灶，大小约9MM×10MM。肠系膜欠清楚，见较多索条影。右侧部分肋骨呈术后改变；余扫描范围内骨质未见明确骨质破坏。</t>
   </si>
   <si>
     <t>肝门区,门腔间隙,腹膜后淋巴结,右侧结肠旁沟,右膈肌</t>
@@ -3191,7 +3191,7 @@
     <t>None肺腺癌4程化疗后，对比2017-11-18片：1、左侧胸腔内见少量包裹性积气，较前明显减少；左侧胸腔中量包裹性积液，较前稍减少。2、左肺中上叶局限性肺不张，体积明显缩小，较前变化不明显。左肺下叶轻度受压，残余含气肺组织内见条片状密度增高影，边界欠清，增强扫描见轻度强化，大致同前。3、左侧胸膜弥漫性增厚并强化，最厚处约12MM，大致同前。4、右肺下叶尖后段见一结节，密度不均匀，边缘部分似见小空洞，直径约7MM，增强扫描似有轻度强化，大致同前。5、右上肺背段新出现一小结节影（Se12，Im135），边界欠清，直径约3MM，建议复查。6、右下肺舌段、右肺上叶背段、外基底段见数个小结节状稍高密度影，部分边界不清，周围见条索影，较大者短径约4MM，考虑增殖灶可能性大。7、右肺上叶见一类圆形薄壁无肺纹理区，考虑肺大泡，大致同前。8、左侧锁骨下区、左下、上气管旁、血管前、隆突上、左肺门见多个肿大淋巴结，大者约为11MM×8MM，边界不清，密度略不均匀，增强扫描不均匀强化，大致同前。9、右侧胸腔未见积液。右侧胸膜无增厚、粘连。10、肝内见多个散在类圆形低密度灶，大者直径约15MM，边界清，无强化。11、颈部未见明显病变。12、扫描范围内骨质结构未见破坏征象。</t>
   </si>
   <si>
-    <t>静息状态上超声心动图未见异常(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，32，20-37MM，右房内径，39，19-40MM，右室舒张末内径，50，35-56MM，右室收缩末内径，31，23-35MM，室间隔厚度，10，6-11MM，右室后壁厚度，10，6-11MM，肺动脉收缩压，32，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，67，%，二尖瓣血流图：，E、A两峰，E/A，&amp;gt；，1；DT：，170，ms，DTI示S波峰值：，10，cm/s；E/A，&amp;gt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，正常，右室内径，正常，右室壁厚度，正常，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，开放不受限，彩色多普勒，示轻微，二尖瓣反流。，3、主动脉窦部，不增宽，升主动脉，不增宽，主动脉瓣，不增厚，，开放不受限，彩色多普勒，未测及，主动脉瓣反流。，4、左房内径，正常，左室内径，正常，肺动脉，不增宽，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
+    <t>静息状态上超声心动图未见异常(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，32，20-37MM，右房内径，39，19-40MM，右室舒张末内径，50，35-56MM，右室收缩末内径，31，23-35MM，室间隔厚度，10，6-11MM，右室后壁厚度，10，6-11MM，肺动脉收缩压，32，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，67，%，二尖瓣血流图：，E、A两峰，，E/A，&amp;gt；，1；DT：，170，ms，DTI示S波峰值：，10，cm/s；E/A，&amp;gt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，正常，，右室内径，正常，，右室壁厚度，正常，，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，，开放不受限，彩色多普勒，示轻微，二尖瓣反流。，3、主动脉窦部，不增宽，，升主动脉，不增宽，，主动脉瓣，不增厚，，，开放不受限，，彩色多普勒，未测及，主动脉瓣反流。，4、左房内径，正常，，左室内径，正常，，肺动脉，不增宽，，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
   </si>
   <si>
     <t>肺癌化疗后，与2016-11-11片对比：脑内未见明显异常。T2、T10椎体异常信号灶，考虑良性可能性大，建议随诊。T12椎体下缘病灶，考虑许莫氏结节。L3/4~L5/S1椎间盘轻度膨出。肺癌化疗后，与2016-11-11片对比：两侧大脑半球对称，灰白质分界清楚。大脑各叶、小脑、脑干形态未见异常，信号均匀。各脑室及脑池大小、形态未见异常；大脑中线结构未见移位，未见占位性病变。颅骨骨质未见破坏。扫描范围内所见两侧下颌窦、筛窦、蝶窦、乳突充气良好，骨壁完整。两眼球后未见占位性病变。胸椎、腰椎顺列齐，腰椎生理弯曲变直，T2、T10椎体见一结节状异常信号灶，大小约为15MM×11MM×16MM，边界欠清，T1WI、T2WI呈不均匀高、低信号灶，增强扫描未见明显强化。T12椎体下缘见一结节状缺损，直径约为8MM，与椎间盘相连。余各椎体骨质形态正常，髓腔信号均匀，未见明显异常信号灶。椎体各附件未见异常。脊髓形态正常，信号均匀，椎管未见狭窄。腰椎椎间盘信号减低，L3/4~L5/S1椎间盘向后轻度膨出，硬脊膜囊前缘轻度受压，两侧神经根未见明显受压。周围软组织未见明显异常。</t>
@@ -3317,7 +3317,7 @@
     <t>左上肺癌术后化疗后，与2013-12-12片比较：左肺中叶及右肺下叶小结节，大致同前。左肺中叶散在索条影，考虑纤维增殖灶。两肺各级支气管普遍稍扩张，大致同前。左侧胸膜轻度增厚，左侧胸腔少量积液，大致同前。肝内多发囊肿。右肾小囊肿。左上肺癌术后化疗后，与2013-12-12片比较：左肺上叶术后缺失，左肺下中叶充气良好。左肺中叶边缘见少许斑片灶、条索病灶，与胸膜粘连。左肺中叶、右肺下叶见数个小结节影，直径约2MM~3MM，轮廓光整，密度均匀，较前未见明显变化。两侧各级支气管普遍管腔稍扩张。两肺门及纵隔未见明显肿大淋巴结。左侧胸腔少量积液，大致同前，左侧胸膜轻度增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝内见多发类圆形低密灶，边界清，最大者直径约13MM，边界清，增强扫描未见强化。胆囊大小正常，其内未见结石，肝内胆管、胆总管未见扩张，其内未见结石。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见小低密灶，边界清，短径约3MM，边界清，增强扫描未见强化，左肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见明显肿大淋巴结。左侧第4、5前肋见斜行线样高密度影，较前未见明显变化。</t>
   </si>
   <si>
-    <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，30，20-37，右房内径，33，19-40，右室舒张末内径，42，35-56，右室收缩末内径，26，23-35，室间隔厚度，8，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约37MMHg，。，三、，右心功能测定：，LVEF：67%；，二尖瓣血流图示E/A，&amp;gt；，1；DT：187MMs，四、组织多普勒测定：，DTI示S波峰值：9.8CM/s；E'/A'，&amp;gt；，1，五、结论：，</t>
+    <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，30，20-37，右房内径，33，19-40，右室舒张末内径，42，35-56，右室收缩末内径，26，23-35，室间隔厚度，8，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约37MMHg，。，三、，右心功能测定：，LVEF：67%；，二尖瓣血流图示E/A，&amp;gt；，1；DT：187MMs，四、组织多普勒测定：，DTI示S波峰值：9.8CM/s；E'/A'，&amp;gt；，1，五、结论：，</t>
   </si>
   <si>
     <t>左乳MT肺转移综合治疗后，与2013.3.8本院PET/CT图像比较：1.未见明显肿瘤复发转移征象；2.第2骶椎良性病变可能性大；腰椎退行性变；余较前大致相仿。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像，与2013.3.8本院PET/CT图像比较。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺术后，右叶上极见低密度灶，大小约为9.7MM×8.8MM，下缘见钙化影，较前相仿。胸部PET/CT图像示左乳MT术后，左肺中叶及上叶部分切除术后；双肺少许斑片影，左肺上叶微小不规则结节影，不伴糖代谢异常增高；肺门及纵隔未见明显肿大淋巴结及糖代谢异常增高灶；两侧胸腔无积液；心脏无明显增大；右侧乳腺无明显占位；两侧腋窝未见明显肿大淋巴结及糖代谢异常增高灶。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，肝右左叶交界处见边界清楚的低密度灶，大小为12.2MM×9.2MM，余实质内未见异常占位；肝内外胆管无扩张；右肾见边界清楚的低密度灶，最大者大小为14.5MM×13.2MM，左肾无殊；脾脏不大，密度均，未见异常占位；胆囊切除术后；右侧肾下腺见钙化影；胰、左肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈，壁光滑无增厚；子宫和两附件区未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示颈胸腰骶椎顺列，生理曲度存在；第2骶椎椎体左侧见小低密度灶，不伴糖代谢异常增高；腰椎少许骨质增生，余颈、胸、腰、骶椎体及椎小关节骨质未见明显骨质破坏吸收征象及糖代谢异常增高灶。</t>
@@ -3770,7 +3770,7 @@
     <t>乙状结肠MT、肝脏转移综合治疗后病例，与2015-9-2本院PET/CT检查比较：1.右肺上叶内基底段转移；左肺下叶前段胸膜旁转移不除外；2.肝脏术区糖代谢增高，考虑为术后改变可能，请随访；肝包膜上积液吸收；余基本同前。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像，与2015-9-2本院PET/CT检查比较。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑未见明显糖代谢异常。CT平扫示右侧基底节区近岛叶处见一大小约为6.8MM×3.9MM的条形低密度影与前相仿，考虑为良性病变，其余脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂略增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。筛窦、蝶窦和两下颌窦粘膜增厚，考虑为慢性炎症。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示右肺上叶内基底段见糖代谢异常增高的结节，较前明显增大，糖代谢增高，大小约为28.6MM×23.2MM，最大SUV值约为8.2；左肺下叶前段胸膜上新增一不伴明显糖代谢异常增高的小结节，直径约为3.3MM；原左肺上叶外基底段小结节与前相仿，直径小于5.0MM；两肺见少许条索影及钙化灶；两肺门及纵隔未见糖代谢异常增高或肿大淋巴结；两侧胸膜无增厚；两侧胸腔无积液；心脏无明显增大；两侧腋窝无殊；左侧肋膈角见不伴糖代谢异常增高的淋巴结，大小约为5.0MM×4.2MM，与前相仿。腹部PET/CT图像示肝脏转移术后，左叶术区切缘见条片状糖代谢异常增高的稍低密度灶，早期及延迟1.5h显像最大SUV值约为5.7和12.1，滞留指数112.2%；肝尾状叶术区延迟相糖代谢略增高，最大SUV值约为2.9；余肝脏实质内见多发不伴糖代谢异常增高的囊性低密度影，较大者位于左侧膈顶，直径约为10.3MM；肝内外胆管无扩张；门腔静脉间见一枚不伴糖代谢异常增高的淋巴结伴钙化，较前缩小，大小约为7.5MM×6.3MM，考虑为慢性炎症；胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；脾脏不大，密度均，未见明显占位；右肾见不伴糖代谢异常增高的囊性灶，大小约为5.0MM×4.2MM，右侧肾盂内见致密影；左肾、胆囊、胰、两肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET/CT图像示乙状结肠MT根治术后，吻合口见高密度缝线影，局部糖代谢轻度增高，最大SUV值约为5.8，肠壁未见明显增厚，考虑为术后改变。膀胱充盈可，内显像剂生理性积聚，壁光滑无增厚；两侧精囊腺形态可；前列腺形态饱满，密度均；两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像所示诸骨未见异常糖代谢增强或骨质破坏吸收征象。</t>
   </si>
   <si>
-    <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，33，20-37，右房内径，31，19-40，右室舒张末内径，41，35-56，右室收缩末内径，24，23-35，室间隔厚度，9，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒测及轻微主动脉瓣反流。，4、左房室不大，肺动脉不增宽，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约27MMHg，。，三、，右心功能测定：，LVEF：73%；二尖瓣血流图示E/A，&amp;lt；，1；DT：194MMs，四、组织多普勒测定：，DTI示S波峰值：13CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
+    <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，33，20-37，右房内径，31，19-40，右室舒张末内径，41，35-56，右室收缩末内径，24，23-35，室间隔厚度，9，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒测及轻微主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约27MMHg，。，三、，右心功能测定：，LVEF：73%；二尖瓣血流图示E/A，&amp;lt；，1；DT：194MMs，四、组织多普勒测定：，DTI示S波峰值：13CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
   </si>
   <si>
     <t>左肺癌、外院化疗后复发、再次化疗4程后复查，同2015-4-19日CT对比，左下肺病灶较前无大变化；纵隔及左肺门淋巴结较前增大，右左头臂静脉受压。左肺中叶外侧段节段性不张，右肺舌段少许纤维灶，下腔静脉内充盈缺损，考虑血栓形成。颅脑未见明确异常。左肺癌、外院化疗后复发、再次化疗4程后复查，同2015-4-29日CT对比：左肺下叶前段见一软组织结节灶，大小约14MM×10MM，呈分叶状，边界欠清，边缘见长条索灶，牵拉左侧胸膜，信号不均匀，增强扫描不均匀强化。左肺中叶外侧段见条片状稍高信号，边界不清，内见充气支气管，增强扫描强化明显。右肺下叶上舌段见少许条索灶，边界不清。左肺下叶、中叶支气管稍变窄，气管及右主支气管及分支通畅。左下上气管旁、左肺门见多发肿大淋巴结，相互融合成团，最大者约35MM×44MM，边界欠清，密度不均匀，增强扫描不均匀强化。右左头臂静脉受压，下腔静脉内见充盈缺损，大小约7MM×8MM，两侧胸腔未见积液。右侧胸膜无增厚、粘连。大脑各叶、小脑及脑干形态正常，信号均匀，增强后亦未见异常信号区。各脑室及脑池大小、形态未见异常；大脑中线结构未见移位，未见占位性病变。颅盖骨骨质未见破坏。扫描范围内所见两侧下颌窦、筛窦、蝶窦、乳突充气良好，骨壁完整。两眼球后未见占位性病变。</t>
@@ -3836,7 +3836,7 @@
     <t>1.7CM×2.4CM</t>
   </si>
   <si>
-    <t>1、两房增大伴轻度二尖瓣反流2、升主动脉增宽，主动脉瓣钙化常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，31，20-37，右房内径，50，19-40，右室舒张末内径，49，35-56，右室收缩末内径，34，23-35，室间隔厚度，11，6-11，右室后壁厚度，11，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房增大，右室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻度二尖瓣反流。，3、主动脉根部不增宽，升主动脉增宽为38MM，主动脉瓣钙化，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房增大，左室不大，肺动脉不增宽，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约38MMHg，。，三、，右心功能测定：，FS：30%；LVEF：60%；二尖瓣血流图示E、A单峰，四、组织多普勒测定：，DTI示S波峰值：11.9CM/s，五、结论：，</t>
+    <t>1、两房增大伴轻度二尖瓣反流2、升主动脉增宽，主动脉瓣钙化常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，31，20-37，右房内径，50，19-40，右室舒张末内径，49，35-56，右室收缩末内径，34，23-35，室间隔厚度，11，6-11，右室后壁厚度，11，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房增大，右室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻度二尖瓣反流。，3、主动脉根部不增宽，升主动脉增宽为38MM，主动脉瓣钙化，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房增大，左室不大，肺动脉不增宽，，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约38MMHg，。，三、，右心功能测定：，FS：30%；LVEF：60%；二尖瓣血流图示E、A单峰，四、组织多普勒测定：，DTI示S波峰值：11.9CM/s，五、结论：，</t>
   </si>
   <si>
     <t>左肺下叶中央型肺癌化疗后复查，左肺门下极肿块较前明显缩小，左下肺节段性不张基本复张，左下肺阻塞性炎症较前明显吸收好转。左肺门小淋巴结，较前缩小。脂肪肝。肝S4稍低密度病灶，性质待定，肝囊肿？肝转移瘤？大致同前，建议MR进一步检查。两肾盂小结石，右肾盂旁囊肿，较前相仿。左肺癌化疗后复查，与2016.10.22片比较：左肺下叶近肺门区见边界不清之软组织密度灶，包绕左肺下叶支气管，较前明显缩小、好转，现病灶轮廓不清，左肺下叶支气管较前通畅，左下肺不张之肺组织基本复张，病灶远侧斑片状及团片状影较前明显减少。余两肺纹理清晰，肺内未见实质性病变。气管及余支气管分支通畅。左肺门区见一淋巴结，边界不清，较前缩小，密度较前减低。右肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜无增厚、粘连。扫描层次中胸椎、胸壁骨及软组织未见异常。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S4见一稍低密度病灶，大小约为7MM×11MM，边界不清，增强后强化不明显，较前未见明显变化。余肝实质未见明显异常密度灶，增强扫描未见异常强化影。肝脏密度普遍减低，低于脾脏密度。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾盂各见一斑点状致密影，右肾盂旁见一囊性灶，大小约为13MM×14MM，边界清楚，增强后未见强化，右侧肾盂稍受压，较前相仿。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。所见骨质未见明显破坏征象。</t>
@@ -3977,7 +3977,7 @@
     <t>右乳MT术后：1.左肺上叶转移性MT可能；右肺下叶炎症；其余双肺慢性炎症及陈旧灶；右侧胸膜增厚钙化；2.甲状腺两侧叶密度不均伴右叶稍高密度结节，良性病变可能，请结合超声检查；3.肝脏囊肿；左肾小结石。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部及锁骨区无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺两侧密度不均，右叶上极见稍高密度结节影，直径约为5.1MM。胸部PET/CT图像示右乳MT术后改变；双肺纹理增粗，紊乱，左肺上叶内侧基底段见糖代谢异常增高的结节，大小约为18.0MM×13.8MM，最大SUV值约为7.2；右肺下叶舌段见糖代谢异常增高的斑片影，大小约为26.8MM×10.3MM，最大SUV值约为7.0；右肺野内另见散在斑片、条絮影，部分伴糖代谢增高，糖代谢最高者位于右肺下叶尖后段，最大SUV值约为1.8；左肺下叶见少许无糖代谢增高的条片影；双肺门及纵隔内未见明显糖代谢异常增高的肿大淋巴结；右侧胸膜增厚伴钙化；两侧胸腔无积液；心脏无明显增大；左侧腋窝见少许无明显糖代谢异常增高的小淋巴结，较大者大小约为8.1MM×5.5MM，考虑为慢性炎性淋巴结；左侧乳腺无殊。腹部PET图像示胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，肝内见数枚囊性低密度灶，较大者大小约为7.4MM×6.7MM；肝内外胆管无扩张；脾脏不大，密度均，脾门上方见类圆形结节影，密度同脾脏类似，考虑为副脾；左肾盂见少许致密影；胆囊、胰、右肾及两肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET/CT图像示两侧腹股沟见糖代谢略增高的淋巴结，较大者位于右侧，大小约为15.6MM×11.0MM，最大SUV值约为2.8，考虑为慢性炎性淋巴结；膀胱内大量显像剂生理性积聚，壁光滑无增厚；子宫内见节育器影；两附件区未见明显占位；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节部分骨质增生，考虑为退行性变。</t>
   </si>
   <si>
-    <t>右房增大伴右室舒张功能减退常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，34，20-37，右房内径，42，19-40，右室舒张末内径，46，35-56，右室收缩末内径，28，23-35，室间隔厚度，11，6-11，右室后壁厚度，10，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房增大，右室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，连续多普勒据轻度三尖瓣反流估测肺动脉收缩压约38MMHg，。，三、，右心功能测定：，FS：40%；LVEF：70%；二尖瓣血流图示E/A，&amp;lt；，1；DT：170MMs，四、组织多普勒测定：，DTI示S波峰值：8.7CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
+    <t>右房增大伴右室舒张功能减退常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，34，20-37，右房内径，42，19-40，右室舒张末内径，46，35-56，右室收缩末内径，28，23-35，室间隔厚度，11，6-11，右室后壁厚度，10，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房增大，右室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻度三尖瓣反流估测肺动脉收缩压约38MMHg，。，三、，右心功能测定：，FS：40%；LVEF：70%；二尖瓣血流图示E/A，&amp;lt；，1；DT：170MMs，四、组织多普勒测定：，DTI示S波峰值：8.7CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
   </si>
   <si>
     <t>肺癌放化疗后：左肺门旁病灶，较前稍增大。左下肺、左上肺斑片影，较前未见明显变化。右肺下叶少量纤维增殖灶，大致同前。两侧锁骨下窝、纵隔及左肺门淋巴结，较前变化不明显。左侧胸腔少量积液。肺癌放化疗后复查，对比2017-02-20片：左肺门旁见少量软组织信号灶，边界欠清，病灶包绕左肺下叶支气管，范围难以准确测量，较前增大，增强扫描可见不均质强化；左肺下叶及左肺上叶见多发斑片灶，边界不清，部分病灶见空气支气管征，与前片对比，病灶未见明显变化。右肺下叶见少许条索影及类结节灶，大致同前。两侧锁骨下窝、左下气管旁、左上气管旁及左肺门见多发淋巴结，部分相互融合，最大约18MM×16MM，较前变化不明显。左侧胸腔可见少量积液，T1WI呈等信号，T2WI呈高信号。右侧胸腔未见积液，两侧胸膜未见增厚。扫描范围未见明显骨质破坏征象。</t>
@@ -4091,7 +4091,7 @@
     <t>None与2011-03-07胸部CT比较：1.食管上段管壁环周性增厚较前减轻，最厚处现约15MM（IMA35），原约16MM（IMA35）；外膜模糊，同腹主动脉接触面小于90度。近端食管扩张。2.纵隔2R、7-9组及胸主动脉后方多发肿大淋巴结较前缩小，现较大约16MM×15MM(IMA31)，原约31MM×13MM（IMA31）。左气管食管沟淋巴结大小约为15MM×13MM（IMA10），原约19MM×13MM（IMA10）。3.右肺上叶及左肺下叶新见斑片状渗出、实变影，考虑放射性炎症可能性大；左肺中叶结节影较前增大（IMA46、49），现较大者约8MM×5MM（IMA49），原约4MM（IMA47）右侧叶间胸膜小结节同前（IMA25）。4.两侧胸膜光滑，未见胸水。5.胸壁诸骨未见骨质破坏灶。</t>
   </si>
   <si>
-    <t>主动脉瓣钙化常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，32，20-37，右房内径，39，19-40，右室舒张末内径，44，35-56，右室收缩末内径，28，23-35，室间隔厚度，10，6-11，右室后壁厚度，9，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣钙化，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约37MMHg，。，三、，右心功能测定：，LVEF：66%；，二尖瓣血流图示E/A，&amp;lt；，1；DT：215MMs，四、组织多普勒测定：，DTI示S波峰值：10.2CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
+    <t>主动脉瓣钙化常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，32，20-37，右房内径，39，19-40，右室舒张末内径，44，35-56，右室收缩末内径，28，23-35，室间隔厚度，10，6-11，右室后壁厚度，9，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣钙化，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约37MMHg，。，三、，右心功能测定：，LVEF：66%；，二尖瓣血流图示E/A，&amp;lt；，1；DT：215MMs，四、组织多普勒测定：，DTI示S波峰值：10.2CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
   </si>
   <si>
     <t>C7-T4椎体及附件、C7-T1棘突多发骨质破坏，转移瘤可能大，T1病理性骨折，C7-T1水平椎管受侵。颈椎退变，C6椎体骨髓增殖性改变。C2-7椎间盘突出、变性，C3-6水平黄韧带肥厚，椎管狭窄。颈椎曲度略变直，部分椎体缘骨质增生，T1椎体变扁，所见范围C7-T4椎体及部分附件、棘突可见片状长T1信号，C7-T1水平棘突周围软组织可见散在结节状、条片状高信号，局部蔓延至C7-T1水平椎管内硬膜外，增强扫描后明显强化，C6椎体明显高信号改变。C2-7椎间盘T2WI下信号减低，纤维环向后突出，颈髓受压变窄，C3-6水平黄韧带肥厚，椎管狭窄。颈髓未见异常信号。</t>
@@ -4271,7 +4271,7 @@
     <t>心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号心功能正常心超声检测值：LA   23MM       AO     26MM        MV E 0.70MM/s     EF 72%LV   44MM       IVS     7MM           A 0.49MM/s     FS 42% RA   28MM       LVPW    6MMRV   15MM       PA     18MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图未见异常。</t>
   </si>
   <si>
-    <t>右房增大(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，33，20-37MM，右房内径，43，19-40MM，右室舒张末内径，51，35-56MM，右室收缩末内径，33，23-35MM，室间隔厚度，10，6-11MM，右室后壁厚度，9，6-11MM，肺动脉收缩压，35，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，64，%，二尖瓣血流图：，E、A两峰，E/A，&amp;lt；，1；DT：，197，ms，DTI示S波峰值：，10.8，cm/s；E/A，&amp;lt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，增大，右室内径，正常，右室壁厚度，正常，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，开放不受限，彩色多普勒，示轻微，二尖瓣反流。，3、主动脉窦部，不增宽，升主动脉，不增宽，主动脉瓣，不增厚，，开放不受限，彩色多普勒，未测及，主动脉瓣反流。，4、左房内径，正常，左室内径，正常，左室收缩活动未见异常。肺动脉，不增宽，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
+    <t>右房增大(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，33，20-37MM，右房内径，43，19-40MM，右室舒张末内径，51，35-56MM，右室收缩末内径，33，23-35MM，室间隔厚度，10，6-11MM，右室后壁厚度，9，6-11MM，肺动脉收缩压，35，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，64，%，二尖瓣血流图：，E、A两峰，，E/A，&amp;lt；，1；DT：，197，ms，DTI示S波峰值：，10.8，cm/s；E/A，&amp;lt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，增大，，右室内径，正常，，右室壁厚度，正常，，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，，开放不受限，彩色多普勒，示轻微，二尖瓣反流。，3、主动脉窦部，不增宽，，升主动脉，不增宽，，主动脉瓣，不增厚，，，开放不受限，，彩色多普勒，未测及，主动脉瓣反流。，4、左房内径，正常，，左室内径，正常，，左室收缩活动未见异常。肺动脉，不增宽，，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
   </si>
   <si>
     <t>肺癌化疗后，与2015-02-03日CT对比：右肺下叶尖后段病灶，较前变化不明显。左肺尖及两肺上叶纤维增殖钙化灶。左肺上叶磨玻璃灶较前变化不明显。纵隔淋巴结，较前变化不明显。右上胸膜增厚，较前变化不明显。甲状腺右叶病变，考虑结节性甲状腺肿可能。右侧肾下腺结合部增粗并钙化，考虑良性病变可能性大。两肾盂小结石。肺癌化疗后：右肺下叶尖后段见一类结节灶，大小约10MM×6MM，边界不清，呈分叶状，边缘见毛刺，密度欠均匀，增强扫描轻度强化，病灶侵犯右侧斜裂胸膜，远端右肺下叶尖后段及舌段见条片状致密影，边界欠清，密度欠均匀，增强扫描强化明显。左肺尖及两肺上叶见散在条索灶，边界尚清，其中左肺尖病灶内夹杂颗粒状钙化灶。左肺上叶前基底段见一类圆形磨玻璃状灶，边界模糊，直径约8MM。气管及支气管分支通畅。主肺动脉窗、左下气管旁、左上气管旁、隆突上见小淋巴结，短径约5~8MM，界清，轻度强化。两侧胸腔未见积液。右上胸膜局限性不均匀稍增厚，增强扫描稍强化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，未见明显异常密度灶，增强扫描未见异常强化影。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区、门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾盂见数个致密灶。右侧肾下腺结合部增粗，内见钙化灶；左肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。所示甲状腺右叶内见一类圆形低密度灶，直径约5MM，界清，轻度强化。扫描范围内骨质未见明确骨质破坏征象。</t>
@@ -4343,7 +4343,7 @@
     <t>胸骨柄,胸11椎体右前份,胸12椎体左后份,左侧第2前肋,左第8肋腋段骨</t>
   </si>
   <si>
-    <t>静息状态上超声心动图未见异常(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，33，20-37MM，右房内径，37，19-40MM，右室舒张末内径，47，35-56MM，右室收缩末内径，29，23-35MM，室间隔厚度，9，6-11MM，右室后壁厚度，9，6-11MM，肺动脉收缩压，30，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，69，%，二尖瓣血流图：，E、A两峰，E/A，=，1；DT：，222，ms，DTI示S波峰值：，12.8，cm/s；E/A，&amp;lt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，正常，右室内径，正常，右室壁厚度，正常，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，开放不受限，彩色多普勒，未测及，二尖瓣反流。，3、主动脉窦部，不增宽，升主动脉，不增宽，主动脉瓣，不增厚，，开放不受限，彩色多普勒，未测及，主动脉瓣反流。，4、左房内径，正常，左室内径，正常，左室收缩活动未见异常。肺动脉，不增宽，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
+    <t>静息状态上超声心动图未见异常(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，33，20-37MM，右房内径，37，19-40MM，右室舒张末内径，47，35-56MM，右室收缩末内径，29，23-35MM，室间隔厚度，9，6-11MM，右室后壁厚度，9，6-11MM，肺动脉收缩压，30，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，69，%，二尖瓣血流图：，E、A两峰，，E/A，=，1；DT：，222，ms，DTI示S波峰值：，12.8，cm/s；E/A，&amp;lt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，正常，，右室内径，正常，，右室壁厚度，正常，，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，，开放不受限，彩色多普勒，未测及，二尖瓣反流。，3、主动脉窦部，不增宽，，升主动脉，不增宽，，主动脉瓣，不增厚，，，开放不受限，，彩色多普勒，未测及，主动脉瓣反流。，4、左房内径，正常，，左室内径，正常，，左室收缩活动未见异常。肺动脉，不增宽，，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
   </si>
   <si>
     <t>右上肺癌综合治疗后，与2016-02-04日片对比：右肺上叶术后缺失。右残肺内少许纤维增殖灶。右上胸膜增厚。左肺下叶、上叶类结节影同前，建议随访。纵膈及右侧锁骨下淋巴结转移，较前未见明显变化。右侧胸腔少量积液同前。甲状腺右叶病灶，考虑结节性甲状腺肿。肝S2小囊肿。胆囊小结石。右肾小囊肿。右上肺癌综合治疗后，与2016-02-04日片对比：右肺下叶术后缺失。右肺上叶见少许纤维条索，边界清晰，未见明确结节影，大致同前。左肺可见数个小类结节影，较大者直径约3MM，边界欠清，较前未见明显变化。气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。右侧锁骨下、血管前、上气管旁见多个淋巴结，最大者短径约12MM，边界不清，密度不均，内见坏死，增强后可见明显强化，较前未见明显变化。右侧胸腔见少量积液同前。左侧胸腔未见积液。右上胸膜增厚。扫描所见甲状腺右侧叶可见2个结节，较大者约14MM×12MM，边界清晰，未见强化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S2见一小囊性灶，直径约为3MM，边界清楚，增强后未见强化，肝内未见异常密度影及强化灶。肝内胆管正常，其内未见结石影，胆囊大小正常，其内见小结石影，胆总管未见扩张，其内未见结石影。肝门区正常；门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见一囊性灶，大小约7MM×4MM，边界清晰，增强扫描未见强化，左肾所见正常。两肾下腺所见正常。膈脚后、腹主动脉旁未见肿大淋巴结。扫描层面中胸椎、腰椎、肋骨未见明确骨质破坏征象。</t>
@@ -4388,7 +4388,7 @@
     <t>左肺上叶外基底段,左肺门,纵隔多发肿大淋巴结,T12椎体</t>
   </si>
   <si>
-    <t>1.右房增大伴轻度二尖瓣反流2.室间隔基底段增厚(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，33，20-37MM，右房内径，45，19-40MM，右室舒张末内径，43，35-56MM，右室收缩末内径，28，23-35MM，室间隔厚度，14，6-11MM，右室后壁厚度，10，6-11MM，肺动脉收缩压，38，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，64，%，二尖瓣血流图：，E、A两峰，E/A，&amp;lt；，1；DT：，192，ms，DTI示S波峰值：，7，cm/s；E/A，&amp;lt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，增大，右室内径，正常，室间隔基底段增厚，余右室壁厚度，正常，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，开放不受限，彩色多普勒，示轻度，二尖瓣反流。，3、主动脉窦部，不增宽，升主动脉，不增宽，主动脉瓣，不增厚，，开放不受限，彩色多普勒，示轻微，主动脉瓣反流。，4、左房内径，正常，左室内径，正常，左室收缩活动未见异常。肺动脉，不增宽，三尖瓣不增厚，开放不受限，彩色多普勒，示轻度，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
+    <t>1.右房增大伴轻度二尖瓣反流2.室间隔基底段增厚(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，33，20-37MM，右房内径，45，19-40MM，右室舒张末内径，43，35-56MM，右室收缩末内径，28，23-35MM，室间隔厚度，14，6-11MM，右室后壁厚度，10，6-11MM，肺动脉收缩压，38，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，64，%，二尖瓣血流图：，E、A两峰，，E/A，&amp;lt；，1；DT：，192，ms，DTI示S波峰值：，7，cm/s；E/A，&amp;lt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，增大，，右室内径，正常，，室间隔基底段增厚，余右室壁厚度，正常，，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，，开放不受限，彩色多普勒，示轻度，二尖瓣反流。，3、主动脉窦部，不增宽，，升主动脉，不增宽，，主动脉瓣，不增厚，，，开放不受限，，彩色多普勒，示轻微，主动脉瓣反流。，4、左房内径，正常，，左室内径，正常，，左室收缩活动未见异常。肺动脉，不增宽，，三尖瓣不增厚，开放不受限，彩色多普勒，示轻度，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
   </si>
   <si>
     <t>1.考虑为左肺中上叶近肺门处中央型MT伴远端阻塞性炎症可能，请结合临床；左肺下叶尖段慢性炎性小结节，请随访；2.右腹无明显糖代谢异常增高的巨大占位，考虑为良性病变（小肠巨大憩室？）；脾脏良性病变，请结合临床；盆腔少量积液。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示左肺中上叶近肺门处见糖代谢异常增高的肿块，最大SUV值为12.9，范围约为56.4MM×60.6MM，左肺中上叶支气管开口截断，左肺下叶支气管受压变窄，肿块远端肺组织大片实变，最大SUV值约为3.0；左肺下叶尖段无明显糖代谢的微小结节；余肺野、右肺门、纵隔、胸壁、腋窝等均未见明显糖代谢异常增高灶，余肺野未见明显占位，纵隔无明显肿大淋巴结，右肺门影不大，两侧胸腔无积液；心脏无明显增大；两侧腋窝无明显肿大淋巴结；两侧乳腺无明显占位。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示右腹（L2水平）不伴糖代谢异常增高的巨大占位，向上延伸至S2水平，最大横截面积约为199.0MM×153.0MM，内见气液平和致密结节影，边界清楚，边缘局部钙化，局部与小肠分界不清，脐部受挤压突出；肝脏实质内未见明显占位；肝内外胆管无扩张；脾脏不大，密度不均，内见大小约为16.6MM×14.3MM低密度灶；胆囊、胰、两肾、肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈，壁光滑无增厚；子宫和两附件区未见明显占位，宫腔内见金属环影；盆腔和两侧腹股沟无肿大淋巴结；盆腔少量积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，脊柱侧弯；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见异常。</t>
@@ -4439,7 +4439,7 @@
     <t>肝囊肿，右肾囊肿肝肋上斜切117MM/（－），剑上纵切61MM/2指，肝区回声较密欠均，内见数个无回声区，最大15MM×13MM，门脉主干内径10MM，左支内径8MM，流速0.18MM/s，主干及右左支血流通畅，为向肝血流，流速曲线正常，脾门处脾静脉内径5MM，血流通畅。肝静脉血流通畅。脾肋间切30MM/（－）。胆囊65MM×24MM，胆总管4MM。胰头15MM，胰体14MM，胰尾11MM。左肾102MM×42MM×48MM，肾盂分离(-)，右肾105MM×51MM×44MM，上极见8MM无回声区，肾盂分离(-)。两侧输尿管未见明显扩张。两侧肾下腺区未见明显肿块回声。CDFI肝胆胰肾血流正常。腹膜后未见明显肿块回声。</t>
   </si>
   <si>
-    <t>升主动脉稍增宽常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，37，20-37，右房内径，32，19-40，右室舒张末内径，41，35-56，右室收缩末内径，28，23-35，室间隔厚度，8，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。，3、主动脉窦部内径正常下限，升主动脉增宽为38MM，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约22MMHg，。，三、，右心功能测定：，LVEF：64%；二尖瓣血流图示E/A，&amp;gt；，1；DT：100MMs，四、组织多普勒测定：，DTI示S波峰值：14.8CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
+    <t>升主动脉稍增宽常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，37，20-37，右房内径，32，19-40，右室舒张末内径，41，35-56，右室收缩末内径，28，23-35，室间隔厚度，8，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。，3、主动脉窦部内径正常下限，升主动脉增宽为38MM，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约22MMHg，。，三、，右心功能测定：，LVEF：64%；二尖瓣血流图示E/A，&amp;gt；，1；DT：100MMs，四、组织多普勒测定：，DTI示S波峰值：14.8CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
   </si>
   <si>
     <t>直肠癌术后肺转移、肝转移综合治疗后，与2015-04-28日片对比：直肠癌术后改变，未见明确复发征。两侧乳腺癌术后改变，局部未见明显复发。两肺多发病变，左肺上叶前基底段病灶较前稍增大，余较前未见明显变化。肝S4、S7病灶，考虑消融术后改变，较前未见明显变化。肝S7结节，考虑血管瘤，同前。肝S7肝内胆管结石。甲状腺左叶结节，较前未见明显变化，考虑良性。直肠癌术后肺转移、肝转移综合治疗后，与2015-04-28日片对比：左肺下叶尖段见一结节灶，大小约16MM×13MM，边界不清，密度不均匀，增强扫描不均匀强化，病灶周围见多发条索灶，与邻近胸膜牵拉粘连，较前变化不大。左肺上叶前基底段见一结节，大小约15MM×13MM，边界不清，密度不均匀，增强扫描轻度强化，较前稍增大。左肺中叶胸膜上及上叶后基底段各见一小厚壁空洞灶，大小约3MM×4MM、12MM×9MM，边缘模糊，周围见条索灶，与邻近胸膜粘连，较前变化不大。右肺纹理清晰，未见明显实质性病变。气管及支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜未见增厚。两侧乳腺术后缺失，两侧腋窝未见肿大淋巴结。甲状腺左叶体积增大，见一稍低密度结节，大小约16MM×13MM，边界清楚，增强扫描较明显强化，大致同前。肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝S4、S7各见一斑片状低密度病变，较大者大小约26MM×16MM，边界清晰，增强扫描未见强化。肝S7见一结节，大小约13MM×9MM，边界清楚，增强扫描各期均见明显强化。肝S7另见一颗粒状致密灶。肝内外胆管未见扩张，胆囊不大，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾及胰腺形态、大小及密度未见异常。两肾及两侧肾下腺未见异常。肝门区及腹膜后未见肿大淋巴结。直肠癌术后，吻合口区肠壁未见明显增厚，肠周间隙清晰。膀胱充盈良好，境界清楚。子宫、宫颈大小、形态未见异常，宫腔内见金属节育环。两侧附件区未见明确肿块。两侧腹股沟区及两侧髂血管旁未见肿大淋巴结。扫描范围内未见明确骨质破坏。</t>
@@ -4589,7 +4589,7 @@
     <t>少量心包积液心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号心功能正常心超声检测值：LA   23MM       AO    21MM        MV E 0.80MM/s     EF 77%LV   43MM       IVS    7MM           A 0.68MM/s     FS 45% RA   33MM       LVPW   7MMRV   17MM       PA    22MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。左室前方可探及少量液性暗区，深度约15MM。彩色及频谱多普勒超声心动图未见异常。</t>
   </si>
   <si>
-    <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，34，20-37，右房内径，38，19-40，右室舒张末内径，41，35-56，右室收缩末内径，29，23-35，室间隔厚度，8，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒测及轻微主动脉瓣反流。，4、左房室不大，肺动脉不增宽，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约38MMHg，。，三、，右心功能测定：，LVEF：65%；，二尖瓣血流图示E/A，&amp;lt；，1；DT：127MMs，四、组织多普勒测定：，DTI示S波峰值：20.6CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
+    <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，34，20-37，右房内径，38，19-40，右室舒张末内径，41，35-56，右室收缩末内径，29，23-35，室间隔厚度，8，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒测及轻微主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约38MMHg，。，三、，右心功能测定：，LVEF：65%；，二尖瓣血流图示E/A，&amp;lt；，1；DT：127MMs，四、组织多普勒测定：，DTI示S波峰值：20.6CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
   </si>
   <si>
     <t>右下肺癌切除术后未见明显复发。右下胸纵隔旁及小主动脉旁少量包裹性积液，未见明显变化。左肺中叶小斑片灶，未见明显变化，考虑增殖灶。甲状腺两叶结节，考虑结节性甲状腺肿，较前变化不明显。右侧腋上片絮灶，考虑术后改变。肝S6类圆形囊性病变，考虑肝囊肿，较前未见明显变化。右下肺根治术后，与2017.11.4片对比。右下肺叶切除术后缺失，支气管残端、右肺残留肺组织内未见软组织肿块。右下胸纵隔旁及小主动脉旁少量包裹性积液，未见明显变化。纵膈右移。左肺中叶小斑片灶，未见明显变化，密度前均匀，边界较清楚。两肺门及纵膈未见明显肿大淋巴结。甲状腺两叶见多发结节，边界清楚，最大者直径约6MM，较前未见明显变化。右侧腋上片状稍高密度病变，密度均匀，边界较清楚。肝S6类圆形囊性病变，密度均匀，边界清晰，增强扫描未见明显强化，大小约25MM×36MM，较2017.7.26片未见明显变化。肝内胆管未见明显异常，胆囊未见明显扩张，胆总管未见扩张。肝门区未见明显异常。门静脉未见明显异常。脾大小未见明显异常，密度均匀。胰腺大小、形态未见明显异常，密度均匀。两肾未见明显异常。两肾下腺未见明显异常。腹膜后、肠系膜根部未见肿大淋巴结。</t>
@@ -4712,7 +4712,7 @@
     <t>两侧额叶,左侧丘脑,右侧直回,右侧顶叶</t>
   </si>
   <si>
-    <t>主动脉窦部及升主动脉增宽(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，39，20-37MM，右房内径，30，19-40MM，右室舒张末内径，43，35-56MM，右室收缩末内径，28，23-35MM，室间隔厚度，7，6-11MM，右室后壁厚度，8，6-11MM，肺动脉收缩压，35，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，64，%，二尖瓣血流图：，E、A两峰，E/A，&amp;gt；，1；DT：，176，ms，DTI示S波峰值：，7.9，cm/s；E/A，&amp;gt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，正常，右室内径，正常，右室壁厚度，正常，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，开放不受限，彩色多普勒，示轻微，二尖瓣反流。，3、主动脉窦部，增宽为39MM，升主动脉，增宽为41MM，主动脉瓣，不增厚，，开放不受限，彩色多普勒，未测及，主动脉瓣反流。，4、左房内径，正常，左室内径，正常，肺动脉，不增宽，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
+    <t>主动脉窦部及升主动脉增宽(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，39，20-37MM，右房内径，30，19-40MM，右室舒张末内径，43，35-56MM，右室收缩末内径，28，23-35MM，室间隔厚度，7，6-11MM，右室后壁厚度，8，6-11MM，肺动脉收缩压，35，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，64，%，二尖瓣血流图：，E、A两峰，，E/A，&amp;gt；，1；DT：，176，ms，DTI示S波峰值：，7.9，cm/s；E/A，&amp;gt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，正常，，右室内径，正常，，右室壁厚度，正常，，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，，开放不受限，彩色多普勒，示轻微，二尖瓣反流。，3、主动脉窦部，增宽为39MM，，升主动脉，增宽为41MM，，主动脉瓣，不增厚，，，开放不受限，，彩色多普勒，未测及，主动脉瓣反流。，4、左房内径，正常，，左室内径，正常，，肺动脉，不增宽，，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
   </si>
   <si>
     <t>肝囊肿。左侧胸腔少量积液（陈旧性）。胆囊、脾脏、胰腺、两肾、膀胱未见明显占位病变声像。两侧输尿管未见明确扩张。左侧附件区囊性灶，考虑卵巢囊肿。子宫、左侧附件区未见明显占位病变声像。肝脏大小、形态正常，包膜光滑，实质回声均匀，血管走行清晰、自然，肝内胆管不扩张，门静脉内径11MM，肝S5门脉旁见一个无回声灶，大小约25MM×13MM，类圆形，边界清，内部透声良好，后方回声增强。CDFI：肝动脉、门静脉血流通畅，为向肝血流信号，充盈良好，肝内未见明确异常血流信号。门静脉最大血流速度约15CM/s。胆囊大小形态正常，囊壁不厚，胆囊内未见明显异常回声。脾脏大小形态正常，包膜光滑，实质回声均匀，未见明显异常回声。胰腺大小形态正常，实质回声均匀，未见明显异常回声。两肾大小形态正常，实质回声均匀，未见明显异常回声。CDFI：两肾血流呈珊瑚状，未见明确异常血流信号。两侧输尿管未见明确扩张。膀胱充盈良好，膀胱壁光滑，不厚，膀胱腔内未见明确肿物回声。子宫大小、形态正常，大小约41MM×40MM×20MM，前位，包膜光滑，宫壁肌层回声均匀，宫腔线清晰，居中。右侧卵巢显示清晰，左侧附件区见一个无回声团，大小约28MM×18MM，椭圆形，边界清，内不透声良好，后方回声增强。CDFI：子宫、两附件未见明确异常血流信号。左侧胸腔探及少量积液，内部透声不佳，宽约35MM。</t>
@@ -5099,7 +5099,7 @@
     <t>右肺鳞癌化疗后复查，与2017-4-11对比：左上肺、左中肺、右下肺小结节，较前变化不明显，考虑纤维增殖钙化灶可能，建议观察。右上肺后基底段斑片状影，考虑炎症。原右侧锁骨下淋巴结较前变化不明显。两侧下上气管旁、纵隔、两肺门多发肿大淋巴结，较前稍增大、坏死范围增大。前心膈角处淋巴结，新发，考虑转移。两侧胸腔积液。肝S4稍低密度影，考虑转移瘤。肝S4增强扫描片状稍低密度影，考虑假病灶可能性大。增强扫描动脉期肝脏其余区域不均匀斑片状强化，考虑化疗后肝损伤可能性大。左肾囊肿。腹主动脉旁淋巴结，较前稍缩小。左侧第5~7肋、右侧第4、5肋骨骨质改变，较前变化不明显。右肺鳞癌化疗后复查，与2017-4-11对比：两肺纹理清晰，左上肺、左中肺、右下肺见数个小结节状病灶，大小约3MM~5MM，边界清楚，部分与左侧斜裂胸膜相连，部分病灶内见钙化灶，较前变化不明显。两肺下叶见少许条索灶及空腔影，边清。前片所示右肺上叶后基底段小片状磨玻璃灶，本次扫描已不明显。右上肺后基底段（SE7-IM49）见斑片状影，边界模糊，大小约33MM×15MM，密度不均匀。原右侧锁骨下多发淋巴结较前变化不明显，大者短径约6MM。两侧下上气管旁、血管前、主肺动脉窗、隆突上、气管后方、两肺门、前心膈角见多发肿大淋巴结，部分相互融合成团块状灶，边界稍模糊，轴位最大范围约98MM×60MM（Se6，Im30），增强扫描不均匀强化稍明显，可见大片坏死，病灶包绕、推挤胸中段食管、下腔静脉、两侧主支气管、两肺动脉干、两下肺静脉、右上肺静脉致其管腔稍变窄，胸中段食管分界不清，管壁增厚，病灶较前稍增大、坏死范围增加。气管及其余支气管分支通畅。两侧胸腔见少量积液，右侧较多。两侧胸膜无增厚、粘连。肝S4（SE9-IM15）见1个稍低密度影，边界欠清，直径约7MM，增强扫描轻度强化。肝S4（SE6-IM62）增强扫描见1个片状稍低密度影，边界清，约30MM×13MM。增强扫描动脉期肝脏其余区域呈不均匀斑片状强化，延迟期呈等密度。肝S8胆管轻度扩张，其余肝内胆管无扩张，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见肿大淋巴结。门静脉未见充盈缺损影。脾不大，密度均匀。胰腺大小、形态未见异常，密度均匀。两侧肾盂未见结石，左肾见边界清晰的类圆形低密度灶，增强扫描各期均无明显强化，直径约8MM；余两肾实质未见异常。两肾下腺未见异常。腹主动脉旁见数枚淋巴结，较大者短径约6MM，较前稍缩小。左侧第5~7肋、右侧第4、5肋骨见模糊骨折线及周围骨质密度增高灶，边界模糊，较前变化不明显；余扫描范围内骨质未见骨质破坏征象。</t>
   </si>
   <si>
-    <t>左肺癌术后改变，未见明确残留征象。左下肺少许纤维灶。右下肺短条状影，考虑增殖钙化灶。左胸腔少量积液。肝囊肿。左上肺癌术后：左侧胸廓稍塌陷，纵隔稍左移；左上肺术后缺如，左下肺见少许条片状密度增高影，相邻胸膜受牵拉；右下肺尖后段见一短条状影，约7MM×3MM大小，内见点状钙化影；余两肺纹理走行清晰，两肺内未见明确实质性病变；气管、支气管分支通畅；两肺门及纵隔未见肿大淋巴结影；左胸腔见少量积液；左侧胸膜增厚、粘连；扫描层次中胸椎、胸壁骨未见异常。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓欠光整，肝S2、S3、S7、S8可见多个低密度病灶，较大者约5MM×7MM，增强后未见强化。肝内胆管正常，其内未见结石影，胆囊不大，内未见结石，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾所见正常。两肾下腺所见正常。腹主动脉旁未见肿大淋巴结。</t>
+    <t>左肺癌术后改变，未见明确残留征象。左下肺少许纤维灶。右下肺短条状影，考虑增殖钙化灶。左胸腔少量积液。肝囊肿。左上肺癌术后：左侧胸廓稍塌陷，纵隔稍左移；左上肺术后缺如，左下肺见少许条片状密度增高影，，相邻胸膜受牵拉；右下肺尖后段见一短条状影，约7MM×3MM大小，内见点状钙化影；余两肺纹理走行清晰，两肺内未见明确实质性病变；气管、支气管分支通畅；两肺门及纵隔未见肿大淋巴结影；左胸腔见少量积液；左侧胸膜增厚、粘连；扫描层次中胸椎、胸壁骨未见异常。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓欠光整，肝S2、S3、S7、S8可见多个低密度病灶，较大者约5MM×7MM，增强后未见强化。肝内胆管正常，其内未见结石影，胆囊不大，内未见结石，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾所见正常。两肾下腺所见正常。腹主动脉旁未见肿大淋巴结。</t>
   </si>
   <si>
     <t>None与2014-12-30胸部CT比较：1.左肺门至左肺下叶后段多发结节融合团块范围较前增大，较大层面原约61MM×37MM（IM29），现约69MM×42MM（IM30），仍包绕左上肺动脉干。左肺上叶胸膜上小结节同前，较大约6MM（IM46）。2.两肺气肿及弥漫肺大泡同前，较大肺大泡仍约56MM×55MM（IM37）。3.左肺门淋巴结较前增大，原约19MM×15MM（IM27），现约32MM×21MM（IM28）。纵隔、两侧锁骨下、腋上未见肿大淋巴结。4.两侧胸膜光滑，未见胸水。胸廓诸骨未见骨质破坏。5.扫及胃底大弯侧胃脾之间高强化结节同前，仍约20MM×19MM（IM56）。</t>
@@ -5411,7 +5411,7 @@
     <t>右下肺癌术后靶向治疗后，与2012-10-22片对比：右肺上叶2个小斑片状、类结节状病变，较大结节较前稍增大，考虑转移瘤，较小结节较前未见明显变化，考虑增殖灶可能性大。右肺上叶及左肺上叶内基底段条索状病变，考虑纤维增殖灶。左肺下叶后段钙化灶。甲状腺两侧叶低密度病变，考虑结节性甲状腺肿。两肾囊肿。第1腰椎上份及第3腰椎小斑片状高密度病变，考虑退行性病变可能性大。右侧第6后肋考虑术后改变。右下肺癌术后靶向治疗后，与2012-10-22片对比：右肺下叶术后缺失。右肺上叶见2个小斑片状、类结节状病变，大小分别约7MM×9MM及3MM×4MM，边界清晰，边缘欠光整，增强扫描呈轻度强化，与前片对比，较大结节较前稍增大，较小结节较前未见明显变化。右肺上叶及左肺上叶内基底段见条索状病变，边界清晰，左肺下叶后段见钙化灶。气管及余支气管分支通畅。两下上气管旁、隆突上、两肺门见数个小淋巴结，最大者约6MM×10MM，边界清晰，部分淋巴结可见钙化。两侧胸腔未见积液。右侧胸膜稍增厚，左侧胸膜未见增厚。甲状腺两侧叶见数个类圆形低密度病变，最大者约11MM×16MM，边界清晰，增强扫描呈轻度强化。肝脏形态、各叶比例未见异常，其外形轮廓光整，密度均匀，增强扫描未见异常强化灶。肝内外胆管未见异常，其内未见结石影，胆囊未见异常。肝门区未见异常。门静脉未见异常。脾脏、胰腺大小、形态、密度未见异常，增强扫描未见异常强化。两肾见数个囊性灶，最大者约11MM×12MM，边界清晰，增强扫描未见强化。两肾下腺未见异常。腹主动脉旁未见肿大淋巴结。第1腰椎上份及第3腰椎见小斑片状高密度病变，边界欠清。右侧第6后肋骨皮质边缘不光整，见骨痂形成。</t>
   </si>
   <si>
-    <t>1.主动脉瓣钙化2.右房增大伴轻度二尖瓣反流常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，30，20-37，右房内径，49，19-40，右室舒张末内径，52，35-56，右室收缩末内径，32，23-35，室间隔厚度，10，6-11，右室后壁厚度，11，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房增大，右室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻度二尖瓣反流。，3、主动脉不增宽，主动脉瓣钙化，开放不受限，彩色多普勒测及轻微主动脉瓣反流。，4、左房室不大，肺动脉不增宽，连续多普勒据轻度三度尖瓣反流估测肺动脉收缩压约32MMHg，。，三、右心功能测定：，FS：38%；LVEF：68%；二尖瓣血流图示单峰，四、组织多普勒测定：，DTI示S波峰值：9CM/s，五、结论：，</t>
+    <t>1.主动脉瓣钙化2.右房增大伴轻度二尖瓣反流常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，30，20-37，右房内径，49，19-40，右室舒张末内径，52，35-56，右室收缩末内径，32，23-35，室间隔厚度，10，6-11，右室后壁厚度，11，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房增大，右室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻度二尖瓣反流。，3、主动脉不增宽，主动脉瓣钙化，开放不受限，彩色多普勒测及轻微主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻度三度尖瓣反流估测肺动脉收缩压约32MMHg，。，三、右心功能测定：，FS：38%；LVEF：68%；二尖瓣血流图示单峰，四、组织多普勒测定：，DTI示S波峰值：9CM/s，五、结论：，</t>
   </si>
   <si>
     <t>右上肺癌术后，与2015-9-23对比：右上胸膜增厚。左肺下叶、上叶斑点影，考虑增殖灶可能性大，较前未见明显变化。纵膈及右侧锁骨下淋巴结转移，较前明显缩小。右侧胸腔少量积液。胆囊小结石。肝脏未见明确病灶。右肾小囊肿。右肺癌术后，右肺下叶术后缺失，右肺上叶见少许纤维条索，边界清晰，未见明确结节影；左下肺及上肺见小斑点状影，边界欠清，直径约2MM；气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。右侧锁骨下、血管前、上气管旁见多个肿大淋巴结，部分淋巴结相互融合，最大淋巴结大小约14MM×14MM；右侧胸腔见少量积液，左侧胸腔未见积液。右上胸膜增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀；肝内胆管正常，其内未见结石影，胆囊大小正常，其内见小结石影，胆总管未见扩张，其内未见结石影；肝门区正常；门静脉所见正常；脾大小正常，密度均匀；胰腺大小、形态正常，密度均匀；右肾见一类圆形囊性灶，大小约7MM×4MM，边界清晰，增强扫描未见强化，左肾所见正常；两肾下腺所见正常；膈脚后、腹主动脉旁未见肿大淋巴结。扫描层面中胸椎、腰椎、肋骨未见明确骨质破坏征象。</t>
@@ -5618,7 +5618,7 @@
     <t>右下肺切除+胸膜粘连烙断术后复查：右肺纤维索条影，考虑术后改变。右胸腔游离及包裹积液，考虑术后改变。左肺下叶尖段磨玻璃密度灶，增殖灶可能性大，同前。左肺中叶、左肺上叶少许纤维灶，同前。甲状腺两叶内稍低密度灶，考虑结节性甲状腺肿可能性大，同前。肝多发囊肿。两肾囊肿，部分合并出血。左肾下腺类结节灶（2个），考虑腺瘤可能性大。右下肺切除+胸膜粘连烙断术后复查：右下肺术后部分缺如，术区见金属缝合钉影及纤维索条影，现右残肺膨胀良好，右肺门区见少许纤维索条影，考虑为术后改变。左肺下叶尖段一片状磨玻璃密度灶，大小约19MM×14MM，边界欠清，病灶内见条片状高密度影，左肺中叶、左肺上叶后基底段见少许条索灶，边界清，与邻近胸膜粘连。气管、右下、上叶及左肺各叶支气管分枝通畅，未见明显软组织肿物或受压变窄。两锁下、两腋窝、两肺门及纵隔未见明确肿大淋巴结。右胸腔见少量游离积液，右下胸腔见少量包裹积液，左胸腔未见积液；右下胸膜增厚，左胸膜未见增厚；未见心包积液。所示甲状腺两叶见数个类结节稍低密度灶，大者直径约16MM，边界欠清，轻度强化。肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，肝内见多发类圆形低密度灶，大者直径约30MM，界清，未见强化。肝内胆管未见扩张，其内未见结石影，胆囊不大，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾见数个类圆形低密度灶及高密度灶，界清，大者直径约11MM，增强扫描未见强化。左肾下腺见2个类结节灶，大小分别约17MM×12MM、13MM×8MM，边界尚清，密度呈低密度，增强扫描轻度强化。右肾下腺大小、形态未见异常，密度均匀。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描所见骨质未见破坏征象。</t>
   </si>
   <si>
-    <t>风心：1、轻度二尖瓣狭窄伴轻度反流2、主动脉瓣钙化3、轻度肺动脉高压伴轻度三尖瓣反流常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，34，20-37，右房内径，43，19-40，右室舒张末内径，35，35-56，右室收缩末内径，23，23-35，室间隔厚度，12，6-11，右室后壁厚度，9，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房增大，右室内径正常，室间隔基底段稍增厚，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣增厚，开放略呈圆隆状，二维估测瓣口面积2.0CM，2，彩色多普勒测及轻度二尖瓣反流。，3、主动脉不增宽，主动脉瓣钙化，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，连续多普勒据轻度三尖瓣反流估测肺动脉收缩压约46MMHg，。，三、，右心功能测定：，LVEF：61%；二尖瓣血流图示狭窄波形，四、组织多普勒测定：，DTI示S波峰值：9.9CM/s；，五、结论：，</t>
+    <t>风心：1、轻度二尖瓣狭窄伴轻度反流2、主动脉瓣钙化3、轻度肺动脉高压伴轻度三尖瓣反流常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，34，20-37，右房内径，43，19-40，右室舒张末内径，35，35-56，右室收缩末内径，23，23-35，室间隔厚度，12，6-11，右室后壁厚度，9，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房增大，右室内径正常，室间隔基底段稍增厚，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣增厚，开放略呈圆隆状，二维估测瓣口面积2.0CM，2，，彩色多普勒测及轻度二尖瓣反流。，3、主动脉不增宽，主动脉瓣钙化，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻度三尖瓣反流估测肺动脉收缩压约46MMHg，。，三、，右心功能测定：，LVEF：61%；二尖瓣血流图示狭窄波形，四、组织多普勒测定：，DTI示S波峰值：9.9CM/s；，五、结论：，</t>
   </si>
   <si>
     <t>食管癌放化疗后，对比2016-7-25CT：颈段及部分胸下段局限性增厚，较前未见明显变化。左侧气管食管沟肿大淋巴结，考虑转移，较前未见明显变化。两肺下叶纵隔旁斑片灶，考虑放射性炎症可能大，左侧病变范围较前稍增大，右侧较前未见明显变化。两颈II区~V区数个小淋巴结，考虑反应性淋巴结可能大，大致同前。下腹部未见明确异常。食管癌放化疗后，对比2016-7-25CT：颈段及部分胸下段食管局限性管壁增厚，最厚约12MM，纵径约30MM，增强后较明显强化，较前未见明显变化；病灶部分与气管后缘分界欠清楚，邻近左侧气管食管沟见肿大淋巴结，最大约15MM×11MM，与病灶分界不清，增强后较明显强化，较前未见明显变化。两肺下叶纵隔旁新见少许斑片灶，边界欠清，左侧病变范围较前稍增大，右侧较前未见明显变化；左肺中叶外侧段见斑片状密度增高灶，边界清；余肺纹理清晰，肺内未见实质性病变。余纵隔及两肺门未见明确肿大淋巴结，气管及支气管分支通畅。两侧胸腔未见积液。右侧纵隔旁胸膜结节状增厚，大小约21MM×20MM；左侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整。肝实质密度均匀，增强后未见异常强化，肝门区正常。门静脉主干及其分支未见异常。胆囊大小正常，其内未见结石，胆总管未见扩张，其内未见结石。胰腺、脾脏大小、形态正常，密度均匀，增强后未见异常强化灶。两肾及两肾下腺形态、大小、密度未见异常。胃右血管旁、腹腔干、腹主动脉未见明确肿大淋巴结。颈部结构清晰，各血管充盈良好。甲状腺两叶及峡部形态正常，密度均匀。喉咽腔形态正常，两侧真假声带未见增厚，前联合未见增厚，梨状窝对称。两侧颌上腺、腮腺大小形态正常，密度均匀。颈部肌群排列对称，密度均匀，肌间隙未见明显异常。两颈II区~V区见数个小淋巴结，最大约8MM×6MM，边界清，密度均匀，增强后均匀强化，较前未见明显变化。扫描所见骨质未见明确破坏征象。</t>
@@ -5822,7 +5822,7 @@
     <t>肝胆胰肾输尿管膀胱前列腺肾下腺未见占位肝肋上斜切139MM/（－），剑上纵切65MM/2指，肝区回声稍密不均，门脉主干内径11MM，左支内径8MM，流速0.20MM/s，主干及右左支血流通畅，为向肝血流，流速曲线正常，脾门处脾静脉内径5MM，血流通畅。肝静脉血流通畅。脾肋间切30MM/（－）。胆囊78MM×30MM，胆总管4MM。胰头18MM，胰体16MM，胰尾16MM。左肾106MM×50MM×49MM，肾盂分离（－），右肾97MM×49MM×48MM，肾盂分离（－）。两侧输尿管未见明显扩张。两侧肾下腺区未见明显占位。膀胱充盈尚可，未见明显异常。前列腺：39MM×33MM×35MM，未向膀胱突出。CDFI示肝胆胰肾前列腺血流正常。</t>
   </si>
   <si>
-    <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，32，20-37，右房内径，36，19-40，右室舒张末内径，43，35-56，右室收缩末内径，29，23-35，室间隔厚度，9，6-11，右室后壁厚度，9，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒测及轻微主动脉瓣反流。，4、左房室不大，肺动脉不增宽，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约27MMHg，。，三、，右心功能测定：，LVEF：62%；，二尖瓣血流图示E/A，&amp;lt；，1；DT：153MMs，四、组织多普勒测定：，DTI示S波峰值：10.0CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
+    <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，32，20-37，右房内径，36，19-40，右室舒张末内径，43，35-56，右室收缩末内径，29，23-35，室间隔厚度，9，6-11，右室后壁厚度，9，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒测及轻微主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约27MMHg，。，三、，右心功能测定：，LVEF：62%；，二尖瓣血流图示E/A，&amp;lt；，1；DT：153MMs，四、组织多普勒测定：，DTI示S波峰值：10.0CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
   </si>
   <si>
     <t>右肺腺癌化疗后复查，与2011-12-09片对比：右上肺病灶，基本同前。右肺门淋巴结基本同前。肝左叶转移瘤，基本同前。胸骨、C7、T1、T9左侧横突、L2、3椎体病灶，考虑转移瘤可能性大，较前无明显改变。右肺腺癌化疗后复查，与2011-12-09片对比：右上肺叶外基底段可见类楔形病灶，边界不清楚，与右侧胸膜粘连，病灶大小约21MM×29MM，较前无明显变化，其内可见片低密度坏死区，增强后实质成分可见明显强化，病灶周围可见少许斑片状条索状影。左下肺后段新见一小结节影，大小约4MM×4MM，余左纹理清晰，肺内未见实质性病变。气管及支气管分支通畅。右肺门可见数个淋巴结，最大者约7MM×7MM，较前变化不明显。两侧胸腔未见积液。两侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝左叶S5可见双个结节状低密度灶，边界不清，大小约11MM×13MM及7MM×8MM，增强后轻度强化，强化程度低于肝实质。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。胸骨、C7、T1、T9左侧横突、L2、3椎体可见结节状致密影，较前无明显变化。</t>
@@ -5987,7 +5987,7 @@
     <t>右后肋胸膜,纵隔胸膜,T6,T11,L1,L3椎体及附件,左侧股骨下段,骨</t>
   </si>
   <si>
-    <t>主动脉瓣钙化(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，32，20-37MM，右房内径，35，19-40MM，右室舒张末内径，44，35-56MM，右室收缩末内径，27，23-35MM，室间隔厚度，9，6-11MM，右室后壁厚度，9，6-11MM，肺动脉收缩压，30，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，69，%，二尖瓣血流图：，E、A两峰，E/A，&amp;lt；，1；DT：，180，ms，DTI示S波峰值：，9，cm/s；E/A，&amp;lt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，正常，右室内径，正常，右室壁厚度，正常，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，开放不受限，彩色多普勒，未测及，二尖瓣反流。，3、主动脉窦部，不增宽，升主动脉，不增宽，主动脉瓣，钙化，，开放不受限，彩色多普勒，示轻微，主动脉瓣反流。，4、左房内径，正常，左室内径，正常，左室收缩活动未见异常。肺动脉，不增宽，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
+    <t>主动脉瓣钙化(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，32，20-37MM，右房内径，35，19-40MM，右室舒张末内径，44，35-56MM，右室收缩末内径，27，23-35MM，室间隔厚度，9，6-11MM，右室后壁厚度，9，6-11MM，肺动脉收缩压，30，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，69，%，二尖瓣血流图：，E、A两峰，，E/A，&amp;lt；，1；DT：，180，ms，DTI示S波峰值：，9，cm/s；E/A，&amp;lt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，正常，，右室内径，正常，，右室壁厚度，正常，，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，，开放不受限，彩色多普勒，未测及，二尖瓣反流。，3、主动脉窦部，不增宽，，升主动脉，不增宽，，主动脉瓣，钙化，，，开放不受限，，彩色多普勒，示轻微，主动脉瓣反流。，4、左房内径，正常，，左室内径，正常，，左室收缩活动未见异常。肺动脉，不增宽，，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
   </si>
   <si>
     <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，32，20-37，右房内径，32，19-40，右室舒张末内径，46，35-56，右室收缩末内径，29，23-35，室间隔厚度，8，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，肺动脉血流图未见异常。，三、，右心功能测定：，LVEF：67%；，二尖瓣血流图示E/A，&amp;gt；，1；DT：173MMs，四、组织多普勒测定：，DTI示S波峰值：8.9CM/s；E'/A'，&amp;gt；，1，五、结论：，</t>
@@ -6006,2496 +6006,6 @@
   </si>
   <si>
     <t>左肺门区、左主支气管周围软组织，较前稍缩小。左肺中上叶及右下肺纵隔旁大片密度增高影，考虑放射性炎症及纤维化。左肺中叶条片影，考虑节段性肺不张。两肺上叶斑片影，考虑炎症性病变，较前稍加重。纵隔小淋巴结，较前缩小。左下纵隔囊性灶，范围较前稍增大。两侧肺气肿，大致同前。两侧胸膜稍增厚，左侧较前增厚。心包中量积液。两肾小囊肿。左下肺癌术后放化疗后，同2016-7-15CT对比：左下肺术后缺如，左肺门区、左主支气管周围软组织增厚，内见金属缝合钉影，左主支气管后壁不光滑，左主支气管管腔变窄，病灶较前稍缩小。左肺中叶膨胀不良，左肺中上叶及右肺下叶纵隔旁见大片状、网格状及条索状密度增高影，部分见支气管充气征，边界与软组织影分界不清。左肺中叶条片影，较前增大。左肺上叶外基底段及右肺上叶基底段可见斑片状密度增高影，边界欠清。两肺纹理较粗乱，两肺呈过度充气状。气管、左中、上叶及右肺各叶支气管分枝通畅。左下、上气管旁、主肺动脉窗、隆突上可见数个肿大淋巴结，较大短径约9MM，边界欠清，增强可见明显强化，较前缩小。纵隔内左下上气管旁见一不规则囊肿影，较前范围稍增大；两侧胸膜稍增厚，左侧较前增厚。两侧胸腔未见积液，心包中量积液。肝脏形态正常，比例正常，外形轮廓光整，密度均匀，快速注射造影剂后，动脉期未见明确异常强化灶，门脉期及平衡期未见明确低密度区；肝内胆管未见扩张，胆囊大小正常，内未见结石影，胆总管未见扩张；肝门区未见肿大淋巴结；门静脉未见充盈缺损；脾大小正常，密度均匀；胰腺大小、形态正常，密度均匀；两肾可见数个类圆形囊性低密度灶，较大直径约5MM，界清，增强无强化；两侧肾下腺大小、形态、密度正常；膈脚后、腹主动脉旁未见肿大淋巴结。扫描范围内胸椎、腰椎、肋骨未见明确骨质破坏征象。</t>
-  </si>
-  <si>
-    <t>右乳术后缺如，部分胸肌存在，术区胸壁及皮肤局部略增厚；右侧腋窝术后，结构紊乱。左乳未见明确异常。右侧内乳区、左侧腋窝可见小淋巴结，大者短径不足0.5CM。右肺中叶见一结节灶，长径约1.2CM。右肺中叶可见类圆形囊状过度充气区及条片影。双肺门及纵隔内未见肿大淋巴结。右侧胸膜略增厚。扫描野内肝实质密度减低。脾内示颗粒状致密影。胆囊腔内密度略增高。右侧部分肋骨密度增高。	1.右乳癌术后改变，术区胸壁及皮肤局部略增厚，较前(2016-2-26)基本变化不著2.考虑右肺转移，略增大；右肺中叶含气囊肿、纤维灶，变化不著3.脂肪肝；脾内钙化灶4.右侧部分肋骨密度增高，变化不著。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，直肠癌术后，双肺转移瘤，较前2016-6-9变化不著2.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.0CM(纵隔窗)，内示小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌，较前(2015-06-23)片基本变化不著；双肺转移，较前部分缩小，部分变化不著，部分略增大；肝转移，较前好转；双侧腋窝、纵隔多发小淋巴结，变化不著；右侧内乳区饱满，变化不著；脑多发转移2.左肺胸膜局限性增厚，局部钙化，变化不著。右侧乳腺乳头上方见不规则软组织密度肿块影，约4.6CM×3.2CM，边缘浅分叶，局部与周围腺体及乳头区皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化，其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结，大者短径约0.6CM。右侧内乳区显示饱满。纵隔内左侧下肺静脉旁及下段食管旁见小淋巴结影。双肺野散在分布大小不等结节灶，大者直径约1.7CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左肺胸膜增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。扫描野肝实质内见多个低密度灶，大者直径约0.8CM，边缘尚清晰，增强扫描边缘强化显著。脑实质内示多发结节灶，大者直径约0.7CM，增强扫描可见环形强化。脑室池无扩张。脑沟回无增宽。中线结构居中。	</t>
-  </si>
-  <si>
-    <t>4.6CM×3.2CM</t>
-  </si>
-  <si>
-    <t>双肺,肝,脑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌并右肺下叶炎症，较前片2016-09-20基本变化不著；右肺类结节，变化不著；右肺门、纵隔淋巴结转移治疗后，较前变化不著。2.右侧胸膜略增厚，变化不著3.肝内钙化灶。4.T12右侧椎弓根密度增高影，变化不著。5.颅脑扫描未见明显异常。6.心脏体积增大；冠脉钙化。右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。右肺见小类结节灶，边缘模糊，直径不足0.5CM。左肺野清晰。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径不足1.0CM，部分增强后强化显著。右侧胸膜略增厚。心脏体积增大，冠脉可见钙化。肝内强化不均质，肝右叶见一斑点状钙化灶。胆胰脾肾上腺及双肾未见异常。肝胃韧带区见短径不足0.5CM小淋巴结。脑实质密度均匀。T12右侧椎弓根示斑片状密度增高影。	</t>
-  </si>
-  <si>
-    <t>右肺门、纵隔淋巴结</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺下叶肺癌术后改变；右肺门、纵隔淋巴结转移部分较前进展，部分变化不著2.右肺炎症纤维灶较前进展3.甲状腺体积增大并低密度灶，考虑为结节性甲状腺肿，变化不著4.双肺气肿，双肺炎症，较前加重5.左肺结节灶，考虑转移。右肺下叶部分术后，局部术区可见包裹性及部分游离性液体密度影，邻近胸膜可见增厚。双肺野可见斑片状及条索状密度增高影，边缘模糊。左肺野可见多发结节灶，部分靠近胸膜，大者直径约0.6CM。另于双肺野内见多发泡状过度透光区。纵隔内3A、4R、4L、6、7区及右肺门示多发肿大淋巴结，大者短径约2.5CM。胸廓骨质未见破坏。甲状腺右侧叶体积增大，向下凸入右上纵隔，其内密度不均，可见低密度区，周围散在点状致密灶，左侧叶内亦可见低密度灶，均边界清晰。	</t>
-  </si>
-  <si>
-    <t>右肺门、纵隔淋巴结,左肺</t>
-  </si>
-  <si>
-    <t>右肺上叶支气管壁示增厚，周围见不规则软组织肿块，增强后呈不均匀强化；右肺中叶支气管局部狭窄，远端见不张肺组织。双肺支气管血管束增粗，小叶间隔增厚，以右肺为著。双肺见多发结节灶，部分边缘毛糙，大者长径约1.4CM。双侧叶间胸膜增厚，局部呈类结节状。双侧肺门及纵隔、右侧锁骨上见大者短径约1.2CM肿大淋巴结。另右肺门及纵隔见钙化灶。左侧颈内静脉局部见低密度充盈缺损。肝内见多发强化灶，大者长径约1.2CM。另肝内见小低密度灶，强化不著。肝内见斑点状钙化灶。双侧肾上腺见类结节灶，可见强化。双肾见低密度灶，边缘不清，似强化。双肾见囊性结节。胆囊内见结节状高密度影。腹腔及腹膜后见短径约0.6CM小或稍大淋巴结。双侧肩胛骨、胸骨、右侧锁骨、多发肋骨及椎骨示多发骨质破坏。	1.结合临床，右肺癌并双肺、肝，双侧肾上腺转移，双肺门及纵隔、右侧锁骨上淋巴结转移；较前片(2016-9-22)示好转；骨转移，考虑较前进展；腹腔淋巴结稍大，变化不著；双侧叶间胸膜增厚，转移可能性大，略好转2.双肾低密度灶，略好转；双肾囊肿3.肝低密度灶，囊肿可能，变化不著；肝内钙化灶4.左颈内静脉栓子形成5.胆囊结石。</t>
-  </si>
-  <si>
-    <t>双侧肩胛骨,胸骨,右侧锁骨,多发肋骨,椎骨,双肺,肝,双侧肾上腺,双肺门及纵隔、右侧锁骨上淋巴结,骨,双侧叶间胸膜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌并阻塞性炎症及肺不张并累及中间支气管治疗后，较前(2016-9-29)好转2.右肺门及纵隔淋巴结转移，较前好转3.左肺上叶斑片状影及类结节灶，首先考虑炎性病变，变化不著4.胸椎局部密度增高，建议观察。右肺门区见软组织密度影，边缘模糊，增强呈不均匀强化，右肺上叶支气管示显著狭窄，病变周围见多发斑片状及条索状密度增高影，右肺中间支气管示管壁增厚并强化。左肺上叶见斑片状及类结节状密度增高影。右肺门、纵隔见大者短径约1.0CM肿大淋巴结。右侧胸膜局部增厚。左颈后皮下见一软组织结节，边缘较清晰，密度不均。扫描野内左侧肾上腺见一长径约1.0CM结节灶。T12椎体可见高密度影。	</t>
-  </si>
-  <si>
-    <t>右肺门及纵隔淋巴结转移</t>
-  </si>
-  <si>
-    <t>注射示踪剂后60MMIN显像，见大脑形态如常，皮层各叶放射性分布均匀。中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，两侧小脑对称。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。双颈部见多发淋巴结，未见明显异常放射性摄取。右乳术后缺如，右腋窝结构紊乱，术区软组织呈斑片状及条形摄取，最高SUV2.7，双肺示多发结节灶，大者约为0.7CM，部分轻度放射性摄取，右肺前胸膜下示斑片状密度增高影，内可见支气管充气征象，可见轻度放射性摄取，最高SUV2.0，右侧胸腔内见少量液性密度影。左侧腋窝、纵隔内4R、7区、左肺门、门腔静脉间、腹膜后大血管周围见多发摄取增高淋巴结，最高SUV5.8，大者短径约1.3CM。腹部胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹膜后未见明显肿大淋巴结。腹水征阴性。腹壁软组织未见明显异常影像。盆腔内膀胱放射性浓聚如常，膀胱壁无增厚。两侧腹股沟无异常淋巴结显示。子宫形态尚可，局部无异常放射性浓聚。两侧附件区未见异常放射性摄取。脊柱诸椎体未见明显异常放射性摄取影。	1.结合病史，右乳癌术后放疗后，术区软组织略高代谢，考虑为治疗后改变；双肺多发转移，左腋窝、纵隔、腹腔及腹膜后多发淋巴结转移；2.右肺慢性炎症及局限性纤维变。3.右侧少量胸腔积液。</t>
-  </si>
-  <si>
-    <t>双肺,左腋窝、纵隔、腹腔及腹膜后多发淋巴结</t>
-  </si>
-  <si>
-    <t>右肺下叶支气管开口处示一不规则软组织密度肿块，截面约3.8CM×3.3CM，边缘分叶，周围示斑片状密度增高影及少许膨胀不全肺组织，与叶间裂关系密切，增强扫描病变呈较显著不均匀强化；病变与右肺门肿大淋巴结分界不清，右肺动静脉局部包绕其中。余双肺示多发斑片条索影及泡状过度透光灶。右肺门及纵隔示多发肿大淋巴结，部分融合，大者短径约1.5CM，可见强化。右侧胸膜略厚；右侧胸腔示少量液体密度影。所扫肝左叶示低密度灶，直径约0.3CM，边缘略模糊，强化不著。双肾示小囊肿。所扫甲状腺内示多发低密度灶及钙化影。部分胸椎骨质密度增高。	1.右肺癌伴阻塞性肺炎、肺不张，右肺门及纵隔淋巴结转移2.双肺炎症及纤维灶、双肺气肿3.右侧胸膜略厚；右侧胸腔少量积液4.肝内低密度灶，考虑小囊肿可能大，建议观察；双肾囊肿5.甲状腺低密度灶、钙化灶，建议观察或进一步检查6.部分胸椎骨质密度增高，观察。</t>
-  </si>
-  <si>
-    <t>3.8CM×3.3CM</t>
-  </si>
-  <si>
-    <t>左乳术后，术区胸肌存在，壁未见增厚及异常强化。左侧腋窝结构紊乱。右乳未见异常。右腋窝及前纵隔胸腺区、隆突下示数个增大淋巴结，大者位于右侧，短径约0.8CM。余纵隔内见数个小淋巴结，直径不足0.5CM。双侧内乳区、双侧腋窝、双侧肺门未见增大淋巴结。双肺散在小结节灶，大者直径约1.1CM，部分为磨玻璃密度。双肺见少许索条或斑片状密度增高影，部分位于胸膜下。双侧胸膜轻度增厚。双侧胸腔未见积液征象。肝内见小囊性低密度结节灶，大者直径不足1.0CM。胆胰脾肾上腺及双肾未见异常。腹腔腹膜后未见明显肿大淋巴结。脑实质未见异常。右侧上颌窦内示液体密度影。骨窗示：T10椎体前缘可见斑片状高密度影。	1.结合临床，左乳癌术后；右腋窝淋巴结肿大，不除外转移；纵隔淋巴结肿大；右肺结节灶，考虑转移；余双肺野类结节影，较前(2015-08-04)片变化不著2.双肺炎症及纤维灶，变化不著3.双侧胸膜轻度增厚4.肝内低密度灶，考虑囊，变化不著5.T10椎体前缘成骨性骨质改变，变化不著。</t>
-  </si>
-  <si>
-    <t>右腋窝淋巴结,右肺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.右肺占位，考虑肺癌并阻塞性肺炎伴纵隔及右肺门淋巴结转移；右肺中叶结节灶，考虑转移2.甲状腺低密度灶，考虑结节性甲状腺肿3.肝囊肿4.子宫、附件术后改变。右肺水平裂旁见一软组织密度结节灶，大小约2.7CM×2.2CM，边缘毛刺、浅分叶，局部牵拉邻近肋胸膜凹陷，病变周围肺野内见少许条索及斑片影，增强扫描病变呈轻度不均匀强化。右肺中叶见一直径约0.8CM结节灶，强化方式同前。右肺下叶见片状密度增高影。左侧肺野清晰。纵隔内气管隆突下及右肺门见肿大淋巴结，大者短径约1.0CM，增强扫描呈不均匀强化。扫描野内甲状腺右侧叶上极见一低密度灶，直径约2.1CM，边界较清晰，增强扫描可见强化，甲状腺被膜完整。心包内见弧形液性密度影。肝实质内见多发囊性密度灶，大者直径约1.8CM，边界清，无强化。胆囊充盈欠佳，壁略厚。胰、脾、双侧肾上腺及双肾未见异常。腹腔及腹膜后未见增大淋巴结。子宫及双附件未见显示。膀胱充盈良好，壁不厚。盆腔内及双侧腹股沟区未见肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t>右肺水平裂</t>
-  </si>
-  <si>
-    <t>2.7CM×2.2CM</t>
-  </si>
-  <si>
-    <t>纵隔及右肺门淋巴结,右肺中叶</t>
-  </si>
-  <si>
-    <t>右乳外上象限可见一不规则软组织密度肿块，边缘明显分叶，周围可见条索影，肿块截面大小约2.4CM×2.3CM，增强后可见病变显著强化。余右侧乳腺内可见显著强化结节灶。右侧腋窝可见肿大淋巴结，大者短径约0.9CM，可见显著强化。左乳及左侧腋窝未见异常。右侧内乳区略饱满。右肺上叶及左肺下叶可见散在类结节灶，边界较清，大者直径约0.3CM；余双肺野清晰，肺纹理走形自然，气管及各级支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶，边界清晰，未见强化。腹腔及腹膜后未见增大淋巴结。骨窗示：多发胸腰椎椎体、部分肋骨呈溶骨性骨质破坏，局部呈膨胀性改变。	1.右乳癌并右侧腋窝转移，多发骨转移2.双肺类结节灶，纤维灶可能，建议观察3.右肾囊肿。</t>
-  </si>
-  <si>
-    <t>右乳外上象限</t>
-  </si>
-  <si>
-    <t>2.4CM×2.3CM</t>
-  </si>
-  <si>
-    <t>右侧腋窝可见肿大淋巴结,多发胸腰椎椎体,部分肋骨,右侧腋窝,骨</t>
-  </si>
-  <si>
-    <t>左肺上叶见一不规则软组织密度肿块影，边缘分叶、毛糙，上叶支气管部分示截断，病变向内与左肺门肿大淋巴结分界不清，截面积约2.6CM×2.1CM；增强扫描呈不均匀强化。右肺野内见结节状致密影。左侧胸壁见高密度影，局部伪影较大，周围结构显示不清。左肺门见肿大淋巴结，短径约1.0CM。肝实质内见多发低密度灶，大部分边界较清，少许边缘模糊，大者直径约0.5CM。胆囊充盈可，其内可见点状致密影。右肾见囊性密度灶，边界清。腹腔及腹膜后未见明确肿大淋巴结。左侧第10、8肋骨示骨质膨胀，骨皮质欠连续，局部骨质密度增高或减低。	1.结合临床，考虑左肺癌；左肺门淋巴结转移2.右肺钙化灶3.肝内多发低密度灶，部分为囊肿，部分建议观察4.右肾囊肿5.胆囊结石6.部分肋骨骨质异常，建议进一步检查，不除外转移。</t>
-  </si>
-  <si>
-    <t>左肺门淋巴结,肋骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌并双肺转移、肝转移治疗后，较前(2015-05-13)明显好转；双侧腋窝、纵隔多发小淋巴结，变化不著；右侧内乳区淋巴结肿大，变化不著2.左肺胸膜局限性增厚，局部钙化，变化不著。右侧乳腺乳头上方见不规则软组织密度肿块影，约4.7CM×3.1CM，边缘浅分叶，局部与周围腺体及乳头区皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化，其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结，大者短径约0.6CM。右侧内乳区见增大淋巴结，短径约0.5CM。纵隔内左侧下肺静脉旁见短径约0.6CM的淋巴结影。双肺野散在分布大小不等结节灶，大者直径约1.7CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左肺胸膜增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。扫描野肝实质内见多个低密度灶，大者直径约1.3CM，边缘尚清晰，增强扫描边缘强化显著，部分呈牛眼征。	</t>
-  </si>
-  <si>
-    <t>右侧乳腺乳头上方</t>
-  </si>
-  <si>
-    <t>4.7CM×3.1CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌，较前(2015-09-15)片增大；双肺转移，较前增大；肝转移，较前好转；纵隔淋巴结转移；右侧内乳区饱满，变化不著；脑多发转移，较前好转2.左肺胸膜局限性增厚，局部钙化，变化不著。右侧乳腺乳头上方见不规则软组织密度肿块影，约7.6CM×6.2CM，边缘分叶，局部与周围腺体及乳头区皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化，其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结，大者短径约0.6CM。右侧内乳区显示饱满。纵隔内心包右旁、气管隆突下及左侧下肺静脉旁及下段食管旁见肿大淋巴结影，大者短径约2.1CM。双肺野散在分布大小不等结节灶，大者直径约4.1CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左肺胸膜增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。肝实质内见多个低密度灶，大者直径约0.5CM，边缘尚清晰，增强扫描边缘强化显著。胆囊充盈可，壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。脑实质内示多发结节灶，大者直径约0.4CM，增强扫描可见环形强化。脑室池无扩张。脑沟回无增宽。中线结构居中。	</t>
-  </si>
-  <si>
-    <t>7.6CM×6.2CM</t>
-  </si>
-  <si>
-    <t>双肺,肝,纵隔淋巴结,脑</t>
-  </si>
-  <si>
-    <t>直肠术后，术区示高密度吻合器影，壁未见明显增厚。盆腔及双侧腹股沟未见明显增大淋巴结。肝实质密度减低，内示小囊性密度灶。双肾内示低密度灶，边缘模糊，另双肾内示囊性密度灶。腹腔及腹膜后未见增大淋巴结。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.7CM(纵隔窗)，内示空洞影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。	1.结合临床，直肠癌术后；双肺转移，较前(2016-10-24)片基本稳定2.双肾低密度灶，基本变化不著，建议观察；双肾囊肿3.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著5.脂肪肝；考虑肝囊肿。</t>
-  </si>
-  <si>
-    <t>3.7CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌并阻塞性炎症，较前片(2015-3-9)基本变化不著2.双肺多发结节灶，考虑转移，较前部分略增大，部分变化不著3.肝囊肿4.部分胸椎体及肋骨骨质密度增高，变化不著，部分较前范围加大，密度增高，考虑骨转移5.右肾低密度灶，变化不著，建议观察。右肺中叶支气管开口处见一不规则软组织密度肿块影，边缘模糊，病变大小不易测量，增强后可见轻度强化。病变远端示片状肺不张影。双肺见多发结节灶，大者直径约0.5CM。纵隔内未见明显肿大淋巴结。肝实质内见多发囊性密度灶，大者直径不足0.5CM。右肾见直径约0.5CM低密度结节灶，未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔内肝胃韧带区及肝十二指肠韧带区见短径不足0.5CM小淋巴结。腹膜后未见肿大淋巴结。部分胸椎骨质密度增高，右侧第3肋局限性骨质密度增高。	</t>
-  </si>
-  <si>
-    <t>双肺,胸椎体,肋骨</t>
-  </si>
-  <si>
-    <t>右肺下叶基底段见软组织肿块影，边缘模糊，有分叶，最大截面约4.0CM×3.0CM(纵隔窗)，增强后可见显著强化；邻近叶间胸膜可见增厚。右肺野内见多个结节灶，大者直径约0.5CM，部分与胸膜关系密切，增强后可见强化。左肺上叶胸膜下见直径约0.2CM小结节灶。左肺见多发索条状及斑片状密度增高影。右侧胸腔见液性密度影。左锁上、纵隔内腔静脉后方、气管隆突下示多发肿大淋巴结，短径约0.9CM。肝实质内见多发囊性密度灶，大者直径约3.0CM。另肝内(2-52)动脉期见一强化结节灶，长径约0.8CM，延迟呈等密度。胆囊充盈可，壁不厚。胰、脾、双侧肾上腺及扫描范围内左肾未见异常。右肾实质内见囊性密度灶，短径约2.0CM。腹主动脉周围示淋巴结，大者短径约0.5CM。	1.结合临床，右肺下叶癌并右侧胸膜转移较前(2014-10-20)进展；右侧胸腔积液；右肺转移，较前进展2.左肺上叶类结节灶，变化不著，建议观察；左肺炎症3.左锁上、纵隔、腹膜后小或稍大淋巴结，较前变化不著4.肝囊肿5.右肾囊肿6.肝内强化灶，考虑血管瘤。</t>
-  </si>
-  <si>
-    <t>右肺下叶基底段</t>
-  </si>
-  <si>
-    <t>4.0CM×3.0CM</t>
-  </si>
-  <si>
-    <t>右侧胸膜,右肺</t>
-  </si>
-  <si>
-    <t>右侧乳腺术后，术区结构紊乱，部分胸肌尚存，右侧胸壁近胸骨旁软组织增厚，相邻胸骨骨质破坏。扫描野内右侧颈后三角区、右侧内乳区及纵隔内见多发增大淋巴结，部分边界欠清。左侧乳腺未见异常。左侧腋窝见直径不足1.0CM淋巴结。双肺野见数个结节灶，大者直径不足1.0CM。甲状腺内示低密度灶，直径约0.7CM，边界欠清。部分肋骨及椎骨骨质密度不均，左侧部分肋骨骨质欠连续。	1.结合临床，右侧乳腺癌术后，右侧胸壁复发并累及胸骨治疗后，较前(2017-1-9)变化不著；右侧颈部、右侧内乳区、纵隔淋巴结转移治疗后，淋巴结显示不清2.左侧腋窝淋巴结稍大，略缩小3.双肺结节灶，变化不著4.部分肋骨及椎骨骨质密度不均，基本变化不著5.甲状腺低密度灶，变化不著。</t>
-  </si>
-  <si>
-    <t>右侧颈部、右侧内乳区、纵隔淋巴结</t>
-  </si>
-  <si>
-    <t>左肺上叶可见一不规则软组织密度灶，约2.6CM×3.7CM，增强扫描呈明显不均匀强化，其边缘呈浅分叶，双肺野内散在多发结节灶，大者直径约0.6CM，纵隔内4R、7区示多发肿大淋巴结，大者短径约1.0CM。T6椎体右侧椎弓根及右侧第6后肋可见局限性骨质密度增高影。	1.左肺上叶癌累及胸膜并双肺多发转移2.纵隔淋巴结肿大3.T6椎体右侧椎弓根及右侧第6后肋局限性骨质密度增高，请结合其他检查。</t>
-  </si>
-  <si>
-    <t>2.6CM×3.7CM</t>
-  </si>
-  <si>
-    <t>左肺上叶纵隔旁示一不规则软组织密度结节灶，与纵隔内主肺动脉窗区肿大淋巴结分界不清，与左肺上叶支气管及左肺动脉关系密切。左肺野内见斑片索条状密度增高影，左侧叶裂及胸膜可见多发类结节状增厚。右侧肺野较清晰。纵隔内及双肺门未见确切肿大淋巴结。左侧胸腔内可见少许液性密度影及引流管影。左侧心包及左侧心膈角区可见多发结节影，大者长径约1.0CM。	1.结合临床，左肺癌治疗后，较前(2015-11-9)片变化不著，左侧胸膜转移及叶裂转移2.左肺慢性炎症及纤维灶3.左侧少量胸腔积液4.左侧心包及心膈角区结节影，较前增大，考虑转移。</t>
-  </si>
-  <si>
-    <t>左侧胸膜,叶裂,左侧心包,心膈角区结节影</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后2.右肺占位，考虑肺癌，较前(2016-8-29)基本变化不著3.右肺门及纵隔淋巴结肿大，考虑转移，变化不著；右锁上淋巴结稍大，变化不著4.右侧胸膜增厚并结节灶，变化不著；左肺类结节灶，建议观察5.胆囊炎6.甲状腺左侧叶低密度灶，变化不著7.左侧上颌窦炎。右乳术后缺如，术区结构紊乱，周围间隙模糊，未见明确异常强化。左乳及左侧腋窝未见明确异常。右肺尖见不规则软组织密度影，其边缘可见小空洞影，边缘分叶、模糊，并可见胸膜牵拉征，截面积约3.5CM×2.2CM；增强扫描呈较显著不均匀强化。右肺上叶及中叶见少许条索状密度增高影。左肺上叶示小类结节灶。右肺门、纵隔内2R、3A、4R、7区见多发增大淋巴结，大者短径约1.4CM，增强扫描呈不均匀强化。右锁上见稍大淋巴结，短径约0.5CM。右侧胸膜局部增厚呈结节状，直径约0.6CM，呈较显著不均匀强化。胆囊充盈好，壁略厚。肝脏、胰腺、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。甲状腺左侧叶见小低密度灶，边界尚清，直径约0.5CM。左侧上颌窦粘膜增厚。双侧颈后三角区见大者短径约0.5CM小淋巴结。	</t>
-  </si>
-  <si>
-    <t>右肺,右肺尖</t>
-  </si>
-  <si>
-    <t>3.5CM×2.2CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，卵巢癌术后；左乳术后改变2.右侧胸膜转移，较前(2016-01-18)加重；右侧胸腔积液基本变化不著；右肺部分膨胀不全；双肺结节灶，考虑转移，较前部分略示增大，部分变化不著3.右肺门及纵隔淋巴结肿大，部分变化不著，部分略示饱满；右侧锁骨上淋巴结肿大，较前变化不著；右侧腋窝小淋巴结，变化不著4.右肺炎症或纤维灶，变化不著5.少量盆腔积液。左乳术后，部分胸肌尚存，术区胸壁略肿胀，皮肤略增厚。右乳未见异常。右侧腋窝见短径约0.5CM的小淋巴结。内乳区示短径不足0.5CM淋巴结。左侧腋窝及左侧内乳区未见肿大淋巴结。右锁上见小淋巴结，短径不足0.5CM。右肺门、纵隔内右上气管旁、腔静脉后间隙、主肺动脉窗区、血管前间隙、隆突下可见肿大淋巴结，大者短径约1.0MM。右侧胸膜增厚(含肋胸膜、纵隔胸膜及叶间胸膜、膈胸膜)，局部呈结节状、带状。右侧胸腔可见游离性及包裹性液体密度影。右肺见条索状密度增高影，右肺部分实变；另于双肺野内见多发类圆形结节灶，边界较清，大者截面约2.4CM×1.6CM。膈上见数个结节灶，轻度强化。子宫术后缺如，残端未见异常增厚及强化。膀胱充盈欠佳，壁不厚。肠系膜区示少量液体密度影。盆腔未见明显肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t>卵巢,左乳</t>
-  </si>
-  <si>
-    <t>右侧胸膜,双肺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.左肺上叶癌，较前2017-2-24略饱满；左侧胸膜转移，变化不著；左肺门、纵隔淋巴结转移，部分略缩小，部分变化不著；骨转移，变化不著2.左侧胸腔积液，较前减少。左肺上叶示一不规则软组织密度灶，大小约1.3CM×1.8CM，边缘分叶，可见强化。左侧胸膜及叶间胸膜示多发结节灶，可见强化。左侧胸腔示液体密度影。右肺胸膜下示小类结节灶。左肺门、纵隔内示数个增大淋巴结，大者短径约0.6CM。部分椎骨及肋骨示高密度灶，左侧第七后肋示骨质破坏。左乳内示小类结节灶。	</t>
-  </si>
-  <si>
-    <t>1.3CM×1.8CM</t>
-  </si>
-  <si>
-    <t>左侧胸膜,左肺门、纵隔淋巴结,骨,左侧第七后肋</t>
-  </si>
-  <si>
-    <t>左乳术后，术区结构紊乱，未见结节及肿块。左侧腋窝结构紊乱。左侧胸肌深面可见软组织密度灶，大者大小约1.6CM×2.4CM。右乳未见异常。左侧内乳区、左侧锁骨上、膈上前组、中组及扫描野内腹腔内见增大淋巴结，大者短径约1.3CM。双侧肺门及纵隔未见肿大淋巴结。右侧水平裂区(3-26)及左肺胸膜下示小类结节灶。甲状腺内示低密度灶。心腔内密度减低。扫描野内肝实质内见多发低密度结节及肿块，边缘略模糊，其密度不均。部分椎骨及肋骨示溶骨性破坏。	1.结合临床，左乳癌术后改变；左侧胸肌深面转移，较前(2016-4-8)考虑变化不著；左侧内乳淋巴结肿大，变化不著；肝转移，较前增多、部分密度增高，余部分增大，部分略缩小；左侧锁骨上、膈上及腹腔淋巴结肿大；骨转移2.右侧水平裂区及左肺类结节灶，变化不著3.甲状腺低密度灶4.提示贫血。</t>
-  </si>
-  <si>
-    <t>部分椎骨,肋骨,左侧胸肌深面,肝,骨</t>
-  </si>
-  <si>
-    <t>右肺上叶尖段可见软组织肿块影，最大截面约1.2CM×1.6CM，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；右肺野可见一类结节灶(3-37)、左肺上叶(3-29)，大者直径约0.3CM。双侧锁骨上区、右肺门、纵隔内右侧气管食管沟、气管右前、腔静脉后、血管前、主肺动脉窗区及隆突下可见肿大淋巴结，大者短径约1.2CM。肝脏形态、大小可，实质密度均质。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾形态大小密度未见明确异常。双侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。骨窗示锁骨、肋骨、椎体可见多发骨质破坏。	1.结合临床，右肺上叶癌侵及脏层胸膜并双侧锁骨上区、右肺门及纵隔淋巴结转移，骨转移2.双侧肾上腺饱满，建议观察。</t>
-  </si>
-  <si>
-    <t>1.2CM×1.6CM</t>
-  </si>
-  <si>
-    <t>锁骨,肋骨,椎体,双侧锁骨上区、右肺门及纵隔淋巴结,骨</t>
-  </si>
-  <si>
-    <t>右肺上叶后段近胸膜处示软组织结节灶，增强扫描明显强化，形态不规则，截面约2.1CM×1.9CM。双肺内示泡状过度透光区。纵隔内气管右旁、腔静脉后间隙、隆突下、右肺门示增大淋巴结，大者短径约1.3CM。右侧胸膜增厚呈结节及肿块状，明显强化。右侧胸腔示液体密度影。肝实质内示数个囊性密度灶，大者短径约0.5CM。胆、胰、脾、双肾上腺、双肾形态、密度未见明显异常。腹腔及腹膜后未见明显增大淋巴结。	1.结合临床，右肺癌，较前(2014-10-7)略似饱满，建议观察；右肺门并纵隔淋巴结转移，较前部分好转，部分变化不著；右侧胸膜转移，较前部分好转，部分变化不著；右侧胸腔积液，较前变化不著2.肝囊肿。</t>
-  </si>
-  <si>
-    <t>2.1CM×1.9CM</t>
-  </si>
-  <si>
-    <t>右肺门并纵隔淋巴结,右侧胸膜</t>
-  </si>
-  <si>
-    <t>左肺上叶可见一不规则软组织密度灶，大小约1.6CM×2.0CM，边缘毛糙，可见毛刺及胸膜凹陷征，增强扫描病变呈较显著、均匀强化。左下肺门区及内前基底段区见团片状、条片状软组织密度影，边缘毛糙，增强扫描可见强化；左肺下叶部分支气管略变窄。右肺上叶(4-26)、下叶(4-39)及左肺下叶(4-28)见类结节灶，边缘模糊。双肺内示索条状密度增高影。双肺上叶小叶间隔增厚，以左侧为著。双侧胸膜(含叶间胸膜)略厚。气管及左主支气管腔内示斑片、斑点状略高密度影。左侧胸腔内示带状液体密度影。右侧锁骨上区、纵隔内2R、3A、4R/L、7区、8区及左肺门可见多发肿大淋巴结，部分融合，大者短径约1.4CM，增强扫描可见强化。左锁上及右侧内乳区示短径不足0.5CM的小淋巴结。左侧膈肌升高，扫描野内肝内及左肾见小囊状无明显强化低密度灶，直径不足0.5CM，边界清。胆囊壁增厚。胸骨、多发椎骨、多发肋骨、双侧肱骨可见成骨性骨质破坏。右侧肩胛骨局部骨质密度增高。脑质内未见异常强化灶，脑沟、脑池未见增宽，脑室大小、形态及位置未见异常，中线结构无移位。右侧眼眶内侧壁局限性向筛窦侧塌陷，同侧内直肌略增粗。	1.结合临床，左肺癌化疗后，较前(2014-10-13)好转；右侧锁骨上、左肺门及纵隔淋巴结肿大，较前好转；多发骨转移，变化不著；考虑左肺癌性淋巴管炎2.左肺炎症，较前好转3.双肺类结节灶，建议观察4.双侧胸膜(含叶间胸膜)增厚5.左侧胸腔积液，较前增多6.肝囊肿，左肾囊肿7.胆囊炎8.气管及左主支气管内略高密度，考虑分泌物，请结合临床9.颅脑CT扫描未见异常改变10.右侧眼眶内侧壁局限性塌陷，请结合临床。</t>
-  </si>
-  <si>
-    <t>1.6CM×2.0CM</t>
-  </si>
-  <si>
-    <t>右侧乳腺乳头上方见不规则软组织密度肿块影，约7.8CM×6.2CM，边缘分叶，局部与周围腺体及乳头区皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化，其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结，大者短径约0.6CM。右侧内乳区显示饱满。纵隔内心包右旁、气管隆突下及左侧下肺静脉旁及下段食管旁见肿大淋巴结影，大者短径约1.1CM。双肺野散在分布大小不等结节灶，大者直径约1.9CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左肺胸膜增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。肝实质内见多个低密度灶，大者直径约0.5CM，边缘尚清晰，增强扫描边缘强化显著。胆囊充盈可，壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。脑实质内未见异常密度影，脑沟、脑池未见增宽或狭窄，脑室大小、形态，位置正常，中线结构居中。增强：脑实质未见异常强化，脑沟、脑池、脑室内未见异常。	1.结合临床，右乳癌，较前(2015-12-8)片变化不著；双肺转移，较前减小；肝转移，较前变化不著；纵隔淋巴结转移较前好转；右侧内乳区饱满，变化不著；原脑转移瘤显示不清2.左肺胸膜局限性增厚，局部钙化，变化不著。</t>
-  </si>
-  <si>
-    <t>7.8CM×6.2CM</t>
-  </si>
-  <si>
-    <t>双肺,肝,纵隔淋巴结</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后；纵隔淋巴结肿大治疗后，较前(2015-4-24)部分缩小，部分变化不著；腹腔及腹膜后淋巴结肿大治疗后，变化不著；双肺转移，大部分缩小，部分变化不著；肝多发转移，大部分密度减低，部分略缩小；多发骨转移，较前部分成骨性成分增多，余变化不著。2.胆囊炎；考虑左肾囊肿，变化不著；脾内低密度灶。3.腹膜、网膜、肠系膜略增厚，变化不著；少量腹水，略示减少。4.门脉左支充盈欠佳，变化不著。5.考虑双肺炎症，局部示好转；双侧胸膜略增厚并左侧胸膜钙化灶。右乳术后，术区壁未见增厚及异常强化。纵隔内右上气管、血管前间隙、隆突下、食管旁见小或增大淋巴结，大者短径约0.6CM。双锁骨上及左侧腋窝示小淋巴结，大者短径不足0.5CM。右侧腋窝未见增大淋巴结。双肺见多发小斑片影及类结节灶，部分与邻近胸膜分界不清。余双肺内示条片密度增高影，局部牵拉邻近胸膜。双侧胸膜略增厚，左侧胸膜见少许斑点状钙化灶。双侧胸腔未见积液征象。肝脏体积缩小，左叶为著，肝内见多发结节灶，融合成团，大小不易测量，增强后呈不均匀强化。门脉左支充盈欠佳。腹腔内贲门旁、肝胃韧带区、肝十二指肠韧带区、腹膜后腹主动脉旁见多发小或增大淋巴结，大者短径约0.8CM，部分与胰腺分界欠清。膈上后组见短径不足0.5CM小淋巴结。胆囊充盈可，壁增厚并见强化。左肾示囊性低密度灶，大者长径约0.7CM，部分边界欠清。脾内示小斑片状低密度区。双侧肾上腺及右肾未见异常。腹腔内示液性密度影。大网膜、腹膜、肠系膜略增厚。胸骨、右侧肱骨、锁骨、肋骨、胸腰椎示多发溶骨性、成骨性骨质破坏，局部周围示软组织影，部分肋骨骨质欠连续。	</t>
-  </si>
-  <si>
-    <t>双肺,肝,骨,胸骨,右侧肱骨,锁骨,肋骨,胸腰椎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.左乳术后改变2.右侧胸膜增厚，考虑转移，较前(2015-6-15)变化不著；右侧胸腔积液变化不著；右肺结节灶，考虑转移较前变化不著3.纵隔淋巴结肿大，变化不著。4.右肺炎症或纤维灶。5.肝周结节灶较前变化不著6.结合临床，卵巢癌术后改变。左乳术后，部分胸肌尚存，术区胸壁略肿胀，皮肤略增厚，右乳未见异常。右侧内乳区示短径不足0.5CM淋巴结。双侧腋窝及左侧内乳区未见肿大淋巴结。纵隔内腔静脉后间隙、肺动脉窗区、隆突下可见肿大淋巴结，大者短径约0.8CM。右侧胸膜增厚，局部呈结节状、带状，右侧胸腔可见游离性及包裹性液体密度影，部分其内可见高密度引流管影。右肺见条索状密度增高影及多发结节灶。左肺野较清晰。扫描野内肝周示结节灶，短径约1.1CM，与肝脏分界欠清。盆腔内子宫、附件术后缺如，术区残端未见异常。膀胱充盈好，壁不厚。直肠未见异常。盆腔内未见肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t>左乳,卵巢</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌治疗后，较前片2015-1-4略示缩小；双肺多发类结节灶，部分较前好转；右肺门、纵隔淋巴结转移，变化不著。2.右肺下叶炎症，右肺下叶小叶间隔增厚，变化不著。3.右侧少量胸腔积液，较前减少；右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根示密度增高影。。右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。另右肺下叶小叶间隔增厚。余双肺野可见多个类结节灶，部分位于胸膜下，边缘模糊，大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径约1.1CM，部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。扫描野内肝内见一斑点状钙化灶。T12右侧椎弓根示斑片状密度增高影。	</t>
-  </si>
-  <si>
-    <t>右肺,右肺门、纵隔淋巴结</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.右肺癌，较前2014-7-7好转；双肺门淋巴结略增大，变化不著；右侧斜裂胸膜类结节灶，考虑转移，变化不著2.右肺上叶炎症，较前进展3.双肺类结节灶，建议观察4.右侧胸腔少量积液。右肺门支气管开口处示一软组织密度肿块，约1.5CM×1.9CM，密度不均，边缘分叶毛糙，增强呈较均匀强化。双肺野内散在磨玻璃影及类结节灶，以上叶为著。右侧斜裂胸膜可见结节灶，大者直径约0.3CM。双肺门示增大淋巴结，大者直径约0.6CM。右侧胸腔示少量液性密度影。	</t>
-  </si>
-  <si>
-    <t>右肺门支气管开口</t>
-  </si>
-  <si>
-    <t>1.5CM×1.9CM</t>
-  </si>
-  <si>
-    <t>右侧斜裂胸膜</t>
-  </si>
-  <si>
-    <t>静脉注射示踪剂FDG后60MMIN行PET/CT显像。PET/CT图像示右肺上叶尖段不规则软组织密度影，边缘分叶、毛刺，邻近胸膜示牵拉，截面约为2.7CM×2.5CM，放射性浓聚，最高SUV9.0。纵隔气管前腔静脉后(2R、4R)、血管前间隙(3A)、右肺门(10R)淋巴结肿大，大者短径约为1.3CM，放射性浓聚，最高SUV10.9；右锁上、右侧下肺静脉上方(9L)小淋巴结，大者短径约为0.5CM，轻度放射性摄取，最高SUV3.5。右前胸膜结节，轻度放射性摄取增高，短径约为0.7CM，最高SUV3.0。右乳腺术后，术区未见复发征象及异常放射性摄取。左乳腺及双腋窝未见异常放射性摄取。脑内未见确切异常密度灶，中线无移位。脑室无扩大。小脑显影如常，两侧小脑对称。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。左侧上颌窦粘膜增厚。腹部胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。腹壁软组织未见明显异常影像。盆腔内膀胱放射性浓聚如常，膀胱壁无增厚。两侧腹股沟无异常淋巴结显示。子宫形态尚可，子宫腔内液性密度影，放射性浓聚，最高SUV7.6，考虑为月经期子宫内膜增厚所致。两侧附件区未见异常放射性摄取。视野内轴心骨未见异常放射性浓聚。上、下肢关节带大致正常。视野内皮肤及软组织内未见异常放射性摄取。	1.右乳癌术后。2.右肺上叶原发性肺癌并纵隔、右肺门淋巴结转移；右锁上、纵隔9L区淋巴结，右前胸膜结节略高代谢，均考虑转移。3.左侧上颌窦炎症。</t>
-  </si>
-  <si>
-    <t>2.7CM×2.5CM</t>
-  </si>
-  <si>
-    <t>纵隔、右肺门淋巴结,右锁上、纵隔9L区,右前胸膜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.右下肺门占位，首先考虑原发性肺癌，并右侧胸膜转移，多发脑转移2.右肺门、纵隔及左锁上淋巴结肿大3.心包腔少量积液4.双侧上颌窦炎症。右侧乳腺术后缺如，术区未见异常强化灶。右下肺门区可见不规则软组织密度肿块，截面约4.3CM×3.4CM，边缘模糊，密度不均质，其内可见散在钙化灶，肿块包绕血管生长，肿块与斜裂胸膜关系密切；增强后病变呈较显著不均质强化。左侧肺野较清晰。右肺门区、纵隔内2R、5区、7区、右侧心膈角区及左锁上可见多发肿大淋巴结，大者短径约1.0CM。心包腔内可见少量液性密度影。双侧脑实质内可见多发结节及肿块影，大者截面3.7CM×3.1CM，其内可见低密度坏死区，增强后可见较显著不均质强化，部分病变周围可见少许低密度水肿带。双侧脑室未见扩张，中线结构略向右侧移位。扫描野双侧上颌窦内可见液性密度影。	</t>
-  </si>
-  <si>
-    <t>右下肺门,右侧乳</t>
-  </si>
-  <si>
-    <t>4.3CM×3.4CM</t>
-  </si>
-  <si>
-    <t>右侧胸膜,脑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后2.右肺癌，较前(2016-11-30)进展3.右内乳、右肺门及纵隔淋巴结肿大，考虑转移，部分略饱满；4.右侧胸膜增厚并结节灶，变化不著；双肺多发结节灶，考虑转移5.胆囊炎6.甲状腺左侧叶低密度灶，变化不著7.左侧上颌窦炎8.右侧肾上腺外侧支结节灶，建议观察。右乳术后缺如，术区结构紊乱，周围间隙模糊，未见明确异常强化。左乳及左侧腋窝未见明确异常。右肺尖见不规则软组织密度影，其边缘分叶、模糊，并可见胸膜牵拉征，肿块最大截面约2.3CM×3.4CM；增强扫描呈较显著不均匀强化。右肺上叶及中叶见少许条索状密度增高影。双肺野内见粟粒状结节影。右肺门、右侧内乳、纵隔内2R、3A、4R、7区见多发增大淋巴结，大者短径约1.2CM，增强扫描呈不均匀强化。右侧胸膜局部增厚呈结节状，直径约0.6CM，呈较显著不均匀强化。胆囊充盈好，壁略厚。肝脏密度减低。右侧肾上腺外侧支可见结节影。胰腺、脾、左侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。甲状腺左侧叶见小低密度灶，边缘模糊，直径约0.5CM。左侧上颌窦粘膜增厚。双侧颈后三角区见大者短径约0.5CM小淋巴结。	</t>
-  </si>
-  <si>
-    <t>右乳,右内乳、右肺门及纵隔淋巴结,右肺尖</t>
-  </si>
-  <si>
-    <t>2.3CM×3.4CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后；右侧内乳区、纵隔、腹腔及腹膜后淋巴结肿大，考虑转移；双肺多发转移，肝多发转移，骨多发转移伴软组织肿块形成，并局部侵及椎管2.胆囊炎3.腹膜、网膜、肠系膜略增厚，少量腹水4.左侧胸膜钙化灶。右乳术后，术区壁未见增厚及异常强化。右侧内乳区、纵隔内右上气管、血管前间隙、隆突下、食管旁见增大淋巴结，大者短径约0.8CM。双侧腋窝未见增大淋巴结。双肺见多发结节灶，大者长径约2.0CM。左侧胸膜见少许斑点状钙化灶。双侧胸腔未见积液征象。肝内见多发结节灶，融合成团，大小不易测量，增强后呈不均匀强化。门脉及下腔静脉主干及分支未见明确充盈缺损。腹腔内贲门旁、肝胃韧带区、肝十二指肠韧带区、腹膜后腹主动脉旁见多发增大淋巴结，大者短径约1.2CM，部分与胰腺分界不清。膈上后组见短径不足0.5CM小淋巴结。胆囊充盈不良，壁增厚并见强化。脾、双侧肾上腺及双肾未见异常。肝周及右侧结肠旁沟、小网膜囊腔见少许液性密度影。大网膜、腹膜、肠系膜略增厚。胸骨、右侧肱骨、肋骨、胸腰椎示多发溶骨性骨质破坏，局部形成软组织肿块，局部突向椎管内。	</t>
-  </si>
-  <si>
-    <t>右侧内乳区、纵隔、腹腔及腹膜后淋巴结,双肺,肝,骨,胸骨,右侧肱骨,肋骨,胸腰椎</t>
-  </si>
-  <si>
-    <t>肝脏大小形态可，实质内示低密度影，边界清晰，增强扫描未见强化，直径不足0.5CM。另肝左叶(2-51)动脉期见一长径约0.7CM强化结节，延迟呈等密度。胆囊不大，壁不厚。胰腺、双侧肾脏、双侧肾上腺及脾未见异常。腹腔及腹膜后未见肿大淋巴结。右乳术后，术区结构紊乱，胸肌存在，壁未见增厚及异常强化。右侧腋窝结构紊乱。左侧腋窝、双侧内乳区、肺门及纵隔未见增大淋巴结。左肺见小类结节，直径不足0.5CM。右肺见少许索条影。双侧胸膜未见增厚。双侧胸腔未见积液征象。鼻咽、口咽、喉及下咽未见异常。双颈见大者短径约0.9CM稍大淋巴结。双侧颈部未见增大淋巴结。椎体(4-51、6-36)局部密度增高。	1.结合临床，右乳癌术后；部分椎体密度增高，考虑转移，请结合ECT2.肝囊肿3.左肺类结节，建议观察；右肺少许纤维灶4.肝内强化灶，考虑血管瘤，建议观察5.双颈部淋巴结稍大。</t>
-  </si>
-  <si>
-    <t>椎体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后，肺转移微波消融术后改变，其旁结节灶，考虑转移，较前2016-1-6进展；右肺上叶炎症，变化不著2.纵隔淋巴结肿大，较前缩小3.肝转移介入术后改变4.左肾囊肿。右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳未见异常。左腋窝示小淋巴结，短径不足0.5CM。右肺上叶可见团片状密度增高影，未见异常强化征象，其前方示一强化结节灶，短径约0.6CM。左侧肺野较清晰。纵隔内气管前腔静脉后见肿大淋巴结，短径约1.3CM。肝实质内示多发结节灶，部分其内示高密度碘油影沉积，大者短径约1.5CM。胆胰脾双肾上腺右肾形态、密度未见明显异常。左肾示囊性密度灶。腹腔及腹膜后未见明显增大淋巴结。	</t>
-  </si>
-  <si>
-    <t>肺,肝</t>
-  </si>
-  <si>
-    <t>右肺门支气管开口处示一软组织密度肿块，约1.9CM×2.9CM，密度不均，边缘分叶毛糙，增强呈较均匀强化。双肺野内散在磨玻璃影及类结节灶，以上叶为著。双肺门示增大淋巴结，大者直径约0.8CM。双侧胸腔未见积液征象。右侧斜裂胸膜示类结节灶。肝、胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。	1.右肺癌，双肺门淋巴结略增大；右侧斜裂胸膜类结节灶，考虑转移2.右肺上叶纤维灶及磨玻璃灶，建议观察3.上腹扫描未见异常。</t>
-  </si>
-  <si>
-    <t>右肺门支气管</t>
-  </si>
-  <si>
-    <t>1.9CM×2.9CM</t>
-  </si>
-  <si>
-    <t>右侧乳腺乳头后方见较多不规则软组织密度肿块影，最大截面约9.2CM×6.6CM，边缘分叶，尚清晰，局部与周围腺体及皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化。左乳腺体致密，未见异常密度灶。双侧腋窝见肿大或稍大淋巴结，大者短径约1.1CM，增强扫描显著强化。双侧内乳区未见肿大淋巴结。双肺野散在分布大小不等结节灶，大者直径约2.2CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左肺门见肿大淋巴结，短径约0.9CM，增强扫描可见强化。左肺胸膜略增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。扫描野肝实质内见多个低密度灶，大者直径约1.9CM，边缘清晰，增强扫描边缘强化显著，部分见牛眼征。	1.结合临床，考虑右乳癌；双侧腋窝、左肺门淋巴结肿大或稍大；双肺转移，肝转移2.左肺胸膜局限性增厚，局部钙化，考虑胸膜斑，请结合临床。</t>
-  </si>
-  <si>
-    <t>右侧乳腺乳头后方</t>
-  </si>
-  <si>
-    <t>9.2CM×6.6CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.右肺癌并右肺癌性淋巴管炎，双肺门、纵隔、双侧锁骨上淋巴结转移；双侧腋窝、腹腔及腹膜后淋巴结肿大，转移不除外；骨转移2.肝内低密度灶，转移不除外，建议观察；肝囊肿2.左肺类结节灶，建议观察3.右侧肩胛下肌低密度灶，建议观察。右肺下叶见一截面约2.9CM×3.6CM软组织肿块，形态不规则，边缘分叶、毛糙伴毛刺，与邻近胸膜关系密切。右肺支气管血管束显著增粗，周围见斑片状软组织密度影，与邻近肺门及纵隔肿大淋巴结分界不清，下叶背段支气管截断，余支气管尚通畅。右肺小叶间隔增厚。双侧肺门、纵隔、双侧锁骨上、双侧腋窝见多发肿大淋巴结，大者短径约2.6CM。腹腔内小弯侧及肠系膜区、腹膜后见大者短径约0.7CM稍大或小淋巴结。右侧胸膜增厚。左肺下叶见一直径不足0.5CM小类结节灶。右侧肩胛下肌见类圆形低密度，未见强化(6-16)。肝内见大者长径约1.0CM囊性结节灶。肝右叶(6-63、62)见一大者长径约0.6CM低密度结节灶，边缘欠清晰。胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常。部分椎体(3-62、71)示骨质破坏，周围软组织增厚。	</t>
-  </si>
-  <si>
-    <t>2.9CM×3.6CM</t>
-  </si>
-  <si>
-    <t>双肺门、纵隔、双侧锁骨上淋巴结,双侧腋窝、腹腔及腹膜后淋巴结,骨,肝,部分椎体</t>
-  </si>
-  <si>
-    <t>左乳外侧见团块状影，边缘不清，内见弥漫细小多形性钙化，增强后呈较显著不均匀强化；同侧乳晕区皮肤略增厚，乳头凹陷。左侧腋窝见大者短径约0.6CM肿大淋巴结，强化较显著。双肺野清晰。扫描野内肝内见大者直径约0.6CM低密度结节，边缘清晰或欠清晰，未见强化。	1.左乳癌并左侧腋窝淋巴结转移2.肝内低密度灶，部分为囊肿，部分囊肿可能，建议观察。</t>
-  </si>
-  <si>
-    <t>左乳外侧</t>
-  </si>
-  <si>
-    <t>右乳术后，术区壁未见增厚及异常强化。纵隔内右上气管、血管前间隙、隆突下、食管旁见小或增大淋巴结，大者短径约0.6CM。双锁骨上及左侧腋窝示小淋巴结，大者短径不足0.5CM。右侧腋窝未见增大淋巴结。双肺见多发结节、类结节灶及小斑片影，部分与邻近胸膜分界不清，大者直径约0.8CM。余双肺内示条片密度增高影，局部牵拉邻近胸膜。双侧胸膜略增厚，左侧胸膜见少许斑点状钙化灶。双侧胸腔未见积液征象。肝脏体积缩小，左叶为著，肝内见多发结节灶，融合成团，大小不易测量，增强后呈不均匀强化。门脉左支充盈欠佳。腹腔内贲门旁、肝胃韧带区、肝十二指肠韧带区、腹膜后腹主动脉旁见多发小或增大淋巴结，大者短径约0.6CM，部分与胰腺分界欠清。膈上后组见短径不足0.5CM小淋巴结。胆囊充盈可，壁增厚并见强化。左肾示囊性低密度灶，大者长径约0.7CM，部分边界欠清。脾内示小斑片状低密度区。双侧肾上腺及右肾未见异常。腹腔内示液性密度影。大网膜、腹膜、肠系膜略增厚。胸骨、右侧肱骨、锁骨、肋骨、胸腰椎示多发溶骨性、成骨性骨质破坏，局部周围示软组织影，部分肋骨骨质欠连续。	1.结合临床，右乳癌术后；纵隔淋巴结肿大，较前(2015-08-17)变化不著；腹腔及腹膜后淋巴结肿大，变化不著；双肺转移，部分增大，部分变化不著；原肝转移，较前考虑变化不著；多发骨转移，基本变化不著2.胆囊炎；考虑左肾囊肿，变化不著；脾内低密度灶，变化不著3.腹膜、网膜、肠系膜略增厚；少量腹水，略减少4.门脉左支充盈欠佳，变化不著5.考虑双肺炎症，较前好转；双侧胸膜略增厚并左侧胸膜钙化灶，变化不著。</t>
-  </si>
-  <si>
-    <t>胸骨,右侧肱骨,锁骨,肋骨,胸腰椎,双肺,骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后改变，双肺转移，较前(2015-11-17)变化不著；肝转移，较前进展；多发骨转移；左乳结节灶，不除外转移，建议观察2.右侧腋窝囊性密度灶，较前略示饱满3.左肺炎症，较前好转，右肺纤维灶。右乳术后缺如，部分胸肌尚存，术区未见异常强化灶。右侧腋窝结构紊乱，局部示一囊性密度灶，直径约2.4CM，可见环形强化。左乳外下象限内见一强化结节灶，边缘略示模糊，直径约0.9CM。左侧腋窝未见异常。双肺野示多发结节灶，边缘较清，大者直径约0.3CM。右肺上叶及左肺下叶可见斑片状条索状密度增高影。双肺门及纵隔未见增大淋巴结。肝实质内示数个低密度灶，边缘较模糊，可见轻度强化，大者直径约3.6CM。胆囊充盈可，壁不厚。胰、脾、双肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。膀胱充盈可，壁不厚。子宫及附件区未见异常。盆腔内未见肿大淋巴结。盆腔内可见少许液性密度影。部分胸腰椎及附件、部分肋骨、髂骨、坐骨、骶骨可见成骨性骨质破坏。	</t>
-  </si>
-  <si>
-    <t>双肺,肝,骨,左乳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左乳术后；右乳近皮下扁平占位，考虑乳癌累及皮肤，建议进一步检查2.双肺结节灶，考虑转移，建议结合前片3.肝内低密度灶，建议进一步检查4.右侧内乳区小淋巴结5.颈部扫描未见明确异常6.T12椎体血管瘤。左乳术后缺如，术区结构紊乱，周围脂肪间隙模糊，部分胸肌尚存，术区胸壁及皮肤未见明确增厚及异常强化。左侧腋窝结构紊乱，可见短径约0.5CM的小淋巴结。右乳近皮下见一较扁平结节灶，边缘模糊，与邻近增厚皮肤分界不清，长径约2.5CM；增强扫描呈不均匀强化。右乳局部皮肤示凹陷。右侧内乳区见短径不足0.5CM的小淋巴结。双肺门及纵隔未见明确肿大淋巴结。双肺野内见多发结节灶，部分呈磨玻璃密度，边界较清，大者直径约0.5CM。肝脏大小、形态可，肝右叶实质内见一低密度灶，边界欠清，直径约0.5CM。胆囊充盈可，壁略厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。T12椎体内示低密度影，边界较清晰，其内可见粗颗粒状高密度影。扫描野内鼻咽、口咽、喉形态可，壁不厚。双颈部未见明确肿大淋巴结。甲状腺双侧叶未见明确异常密度灶。	</t>
-  </si>
-  <si>
-    <t>右侧乳腺乳头后方见较多不规则软组织密度肿块影，最大截面约4.7CM×6.7CM，边缘分叶，局部与周围腺体及乳头区皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化，其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见稍大淋巴结，大者短径约0.6CM。右侧内乳区见增大淋巴结，短径约0.5CM。纵隔内左侧下肺静脉旁见短径约0.6CM的淋巴结影。双肺野散在分布大小不等结节灶，大者直径约1.6CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左肺胸膜增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。扫描野肝实质内见多个低密度灶，大者直径约1.5CM，边缘清晰，增强扫描边缘强化显著，部分见牛眼征。	1.结合临床，右乳癌治疗后，较前(2015-03-27)好转；双侧腋窝、纵隔淋巴结肿大，较前缩小；右侧内乳区淋巴结肿大；双肺转移，部分较前缩小，部分变化不著；肝转移，较前略缩小2.左肺胸膜局限性增厚，局部钙化，变化不著。</t>
-  </si>
-  <si>
-    <t>4.7CM×6.7CM</t>
-  </si>
-  <si>
-    <t>左肺上叶见一空洞性病变，边缘分叶、毛糙，上叶支气管部分示截断，截面积约2.1CM×2.0CM；增强扫描呈轻度强化。右肺野内见结节状致密影。双肺内示散在斑片状密度增高影。左侧胸壁见高密度影，局部伪影较大，周围结构显示不清。左肺门及纵隔内血管前间隙见肿大淋巴结，大者短径约0.9CM。双侧胸膜示不均匀增厚并强化，双侧胸腔内见液性密度影。肝实质内见多发低密度灶，大部分边界较清，少许边缘模糊，大者直径约0.5CM。胆囊充盈可，壁增厚。右肾见囊性密度灶，边界清。腹腔及腹膜后未见明确肿大淋巴结。左侧第10、8肋骨示骨质膨胀，骨皮质欠连续，局部骨质密度增高或减低。	1.结合临床，左肺癌并左肺门淋巴结转移治疗后，较前(2016-12-19)考虑基本变化不著；纵隔淋巴结肿大，较前略增大2.双肺炎症及部分膨胀不全，部分较前好转，右肺钙化灶3.肝内多发低密度灶，部分为囊肿，部分建议观察，变化不著4.右肾囊肿5.部分肋骨骨质异常，考虑转移，较前变化不著6.双侧胸腔积液，右侧略减少，左侧变化不著。</t>
-  </si>
-  <si>
-    <t>右乳腺体内可见多发软组织密度结节灶，大者直径约4.5CM，边缘毛糙，增强后呈明显强化，部分相互融合，与乳腺皮肤多发结节灶分界欠清，并相互融合，增强后呈较显著强化。右侧腋窝可见融合成团的肿大淋巴结，边缘分叶，局部可见溃疡形成，增强后呈较显著不均质强化。右侧胸肌内亦可见多发结节灶，边缘模糊，可见较显著强化。右侧胸壁显示水肿。双肺内可见散在类圆形结节灶，边界较清晰，大者直径约0.8CM。左乳未见异常。纵隔内未见肿大淋巴结。右锁上、左侧腋窝、双侧内乳区、气管右旁可见肿大淋巴结，大者短径约1.3CM，边缘较模糊。双侧甲状腺体积增大，局部可见低密度灶及散在钙化灶。右侧锁骨呈内固定术后改变，余扫描野内骨质未见明显破坏。肝脏实质密度减低。胆囊充盈可，壁不厚。胰、脾、双侧肾上腺及左肾未见异常。右肾内可见囊性密度灶，未见强化。腹腔及腹膜后未见肿大淋巴结。脑实质均质，未见异常密度灶。脑室系统未见扩张。中线结构居中。	1.右乳癌并侵及皮肤及胸壁，右腋窝淋巴结转移，右侧胸壁转移，双肺转移2.右锁上、左侧腋窝、双侧内乳区、纵隔淋巴结略肿大3.甲状腺增大伴低密度灶及钙化灶，请结合其他检查4.脂肪肝5.右肾囊肿6.右侧锁骨内固定术后改变7.颅脑扫描未见异常。</t>
-  </si>
-  <si>
-    <t>4.5CM</t>
-  </si>
-  <si>
-    <t>右腋窝淋巴结,右侧胸壁,双肺</t>
-  </si>
-  <si>
-    <t>右肺下叶基底段见软组织肿块影，边缘模糊，有分叶，肿块最大截面约1.9CM×3.5CM，增强后可见显著强化；邻近胸膜可见增厚。右肺内、右侧肋胸膜、叶间胸膜及斜裂胸膜示多发结节灶，大者直径约0.3CM，增强后可见强化。左侧肺野清晰，未见异常。左锁上、纵隔内腔静脉后方、气管隆突下示多发肿大淋巴结，短径约0.8CM。肝实质内见多发囊性密度灶，大者直径约3.0CM。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及扫描范围内左肾未见异常。右肾实质内见囊性密度灶，短径约2.0CM。肝总动脉旁示增大淋巴结，短径约0.5CM。	1.结合临床，右肺下叶癌并右侧胸膜转移较前(2014-5-19)好转2.右肺结节灶，考虑转移，较前好转3.左锁上、纵隔、腹腔淋巴结肿大，较前缩小4.肝囊肿5.右肾囊肿。</t>
-  </si>
-  <si>
-    <t>1.9CM×3.5CM</t>
-  </si>
-  <si>
-    <t>右肺下叶外侧基底段示一软组织密度结节灶，截面约2.7CM×3.2CM，密度不均，边缘毛糙，其远侧可见粗大条索影与后胸膜相连，增强扫描示轻度强化。余两肺野清晰，肺门及纵隔内未见确切肿大淋巴结影。胸腔内无积液征象。脑实质内示数个低密度结节灶，大者直径约1.2CM，位于左额叶，增强扫描示边缘轻度强化，病灶周围脑组织无水肿征象。中线结构居中。脑室池无扩张移位。骨质未见明显异常。	1.右肺占位，考虑右肺癌较前2016-8-9增大。2.脑转移，较前2016-8-9变化不著。</t>
-  </si>
-  <si>
-    <t>2.7CM×3.2CM</t>
-  </si>
-  <si>
-    <t>右肺中叶可见一软组织密度灶，边缘毛糙，呈分叶状，大小约10.8CM×9.5CM，向内与心包关系密切，向外与胸膜分界不清，增强后示边缘显著强化，内部不均匀强化，右肺中叶少许肺组织实变。右肺尖示类结节灶，外缘胸膜牵拉。纵隔及右侧肺门可见多发性结节灶，位于右肺门者与肿块分界欠清，余大者短径约1.0CM。双侧肺野内可见多发性过度透光区。余肺野未见明显异常。心包内示少量液体密度影。右侧胸腔示液体密度影。胸廓骨未见明显异常。肝大小、形态、位置可，实质可见多发性低密度灶，大者长径约0.8CM，边界清，未见强化，肝脏密度弥漫性减低。胆囊充盈不良，壁略厚。胰、脾、双侧肾上腺及扫描区内双侧肾脏未见明显异常。腹腔及腹膜后未见明显肿大的淋巴结。	1.右肺CA治疗后，较前片(2017-2-4)示进展；纵隔及右肺门淋巴结肿大，考虑转移，部分变化不著，部分与肿块分界欠清部分略缩小。2.左侧胸腔积液，心包少量积液3.肺大泡；右肺尖类结节灶，变化不著4.脂肪肝，肝囊肿。5.胆囊炎。</t>
-  </si>
-  <si>
-    <t>10.8CM×9.5CM</t>
-  </si>
-  <si>
-    <t>右肺下叶背段可见不规则软组织密度肿块，截面大小约1.3CM×0.9CM，边缘浅分叶，周围可见多发长短毛刺，胸膜可见牵拉凹陷，增强后呈较显著不均质强化。左侧肺野较清晰。右侧胸膜(含叶间胸膜)可见不均匀增厚，可见多发结节灶，增强后呈较显著强化。右肺门、纵隔内2R、3A、7区可见多发略肿大淋巴结，大者短径约0.5CM。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及双肾形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。骨窗示：右侧第三、六、七肋骨示溶骨性骨质破坏。	1.右肺下叶癌并右侧胸膜(含叶间胸膜)转移较前2016-3-29变化不著；右肺门、纵隔淋巴结肿大，考虑转移，较前变化不著；多发骨转移较前变化不著2.上腹部扫描未见明显异常。</t>
-  </si>
-  <si>
-    <t>1.3CM×0.9CM</t>
-  </si>
-  <si>
-    <t>右侧第三、六、七肋骨,右侧胸膜(含叶间胸膜),纵隔淋巴结,骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左乳癌术后；卵巢转移术后，术区片状低密度影，较前2015-10-9变化不著2.网膜、肠系膜及盆腹膜转移治疗后，较前好转3.脂肪肝；肝囊肿；肝内低密度灶，变化不著4.右肾囊肿5.宫颈体积增大，变化不著6.胸腰骶椎、肋骨、髋骨骨质密度增高，考虑转移，较前变化不著7.腹腔少量积液，较前变化不著。左乳术后缺如，术区结构紊乱，周围脂肪间隙模糊，部分胸肌尚存，术区胸壁及皮肤未见明确增厚及异常强化。左侧腋窝结构紊乱。右乳未见明确异常。左侧锁骨上间隙较模糊。左肺门示短径约0.6CM淋巴结。右侧腋窝、双侧内乳区、右肺门及纵隔未见明确肿大淋巴结。左肺示少许斑片影。右肺未见明确异常密度灶。肝脏密度减低，内见囊性密度灶，边界较清，直径约2.0CM。另肝内示斑片状低密度灶，强化不著，边界欠清。胆囊、胰腺、脾、双侧肾上腺及左肾未见明确异常。右肾见短径不足0.5CM的小低密度灶。腹腔内肝胃韧带区、腹膜后腹主动脉周围见小淋巴结，大者短径约0.6CM。网膜及肠系膜、盆腹膜示增厚，局部呈斑片状及结节状改变，部分与邻近肠管分界不清，增强呈不均匀强化。腹腔内可见液性密度影。卵巢术后，术区结构紊乱，周围间隙模糊，可见片状低密度影，与周围结构分界不清。宫颈体积增大，密度欠均匀。膀胱充盈可，壁略增厚。盆腔内未见明确肿大淋巴结。多发胸腰骶椎椎体及附件、双侧部分肋骨、双侧髋骨示骨质密度增高，局部可见结节状高密度影。双侧肱骨、股骨及左侧肩胛骨密度欠均。	</t>
-  </si>
-  <si>
-    <t>卵巢,网膜,肠系膜,盆腹膜,胸腰骶椎,肋骨,髋骨</t>
-  </si>
-  <si>
-    <t>右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。右肺见小类结节灶，边缘模糊，直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径不足1.0CM，部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。扫描野内肝内见一斑点状钙化灶。肝胃韧带区见短径不足0.5CM小淋巴结。T12右侧椎弓根示斑片状密度增高影。	1.结合临床，右肺癌并右肺下叶炎症，较前片2016-6-2略好转；右肺类结节，变化不著；右肺门、纵隔淋巴结转移治疗后，较前变化不著。2.右侧胸膜略增厚，变化不著3.肝内钙化灶。4.T12右侧椎弓根密度增高影，变化不著。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合乳癌病史，左小脑半球转移瘤，及左枕骨转移灶；2.双上颌窦炎。左侧小脑半球示一结节灶，截面约3.2CM×2.6CM，边缘较清，呈等T1等T2信号，T2-FLAIR呈等高混杂信号，增强扫描呈明显不均匀强化；病变周围示片状长T2水肿带；第四脑室受压右移，中线结构局部右移。左枕骨示斑片状等T1等T2信号，T2-FLAIR呈低信号，增强扫描呈明显不均匀强化。扫描野内双侧上颌窦内示液性信号影。	</t>
-  </si>
-  <si>
-    <t>乳</t>
-  </si>
-  <si>
-    <t>左小脑半球,左枕骨</t>
-  </si>
-  <si>
-    <t>左乳术后缺如，左侧胸壁及胸肌复发术后，术区胸壁胸肌尚存，局部皮肤略增厚，轻度强化。左侧腋窝间隙模糊，可见斑片状高密度影，边缘毛糙。右乳未见异常。右腋窝、内乳及纵隔未见明显肿大淋巴结。右肺示数个结节及类结节灶，大者长径约1.1CM，可见强化，局部略呈空洞状。左肺示少许斑片及条索影。扫描野内甲状腺内示数个低密度灶，直径不足0.5CM，边界清。	1.结合临床，左乳癌术后，术区胸壁复发术后，术区皮肤增厚，较前2016-06-20好转，请结合临床；右肺结节及类结节灶，转移待排，较前变化不著2.甲状腺低密度灶，考虑良性病变，较前变化不著3.左肺纤维灶。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.右肺下叶中心型肺癌累及肺门、纵隔并阻塞性肺不张、肺炎；右肺门、纵隔淋巴结转移。2.腹部扫描未见异常。3.双颈部小淋巴结。4.双侧胸膜略增厚。5.右肺上叶钙化灶。6.双肺气肿。右肺下叶支气管周围可见一不规则软组织密度肿块影，约8.0CM×6.8CM，增强扫描呈明显不均匀强化，与其远端不张的肺组织分界不清，远端可见斑片状密度增高影，向内与肺门淋巴结分界不清，与纵隔内软组织及心包、大血管分界不清，余双肺野内散在囊泡状过度透光灶，右肺上叶示一钙化结节灶。右肺门、纵隔内示多发肿大融合的淋巴结影，大者短径约5.4CM。左侧胸膜略示增厚。肝脏大小形态未见异常，肝实质未见异常密度影。胆囊、胰腺、脾、双肾、肾上腺未见异常，腹腔腹膜后未见肿大淋巴结影。各咽壁不厚，双侧颈部II、III区示数个结节灶，大者短径约0.8CM。腮腺及双侧甲状腺未见异常。	</t>
-  </si>
-  <si>
-    <t>右肺下叶中心型</t>
-  </si>
-  <si>
-    <t>8.0CM×6.8CM</t>
-  </si>
-  <si>
-    <t>左肺门周围可见不规则软组织密度肿块影，约4.2CM×4.9CM，增强扫描呈明显不均匀强化，与其远端不张的肺组织、肺门淋巴结、纵隔内软组织及心包分界不清。双肺内见多发斑片状密度增高影。左肺上叶示一结节灶，直径约0.9CM，双侧胸膜及叶间胸膜上可见多发类结节灶。纵隔内2R、4R、4L、5、6、7、8区示多发融合的淋巴结影，大者短径约1.2CM。心包内及左胸腔内可见液性密度影。肝脏大小形态未见异常，肝实质内可见数个囊性低密度灶，边界清，增强扫描无强化。左肾示斑片状低密度灶。另双肾内示小囊性密度灶。胰尾部示低密度影。胆囊、脾、左肾上腺未见异常，右肾上腺示一类结节灶，长径约3.6CM。腹腔内示短径不足1.0CM淋巴结。腹膜后未见肿大淋巴结影。部分椎骨、肋骨密度略增高。	1.左肺中心型肺癌累及肺门、纵隔及心包、阻塞性肺不张，较前(2016-1-10)略好转；肺炎治疗后，较前变化不著；左肺上叶结节灶较前略增大，考虑转移；双侧胸膜多发结节灶，考虑转移，变化不著；纵隔淋巴结转移，较前略缩小；右肾上腺转移，变化不著2.肝囊肿；双肾囊肿；左肾低密度灶，胰腺低密度灶，变化不著3.心包、左胸腔少量积液，略减少4.部分椎骨及肋骨密度略增高，考虑转移，较前变化不著。</t>
-  </si>
-  <si>
-    <t>左肺中心型</t>
-  </si>
-  <si>
-    <t>4.2CM×4.9CM</t>
-  </si>
-  <si>
-    <t>左肺上叶,双侧胸膜,纵隔淋巴结,右肾上腺,椎骨,肋骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合右乳癌术后病史，左顶叶转移。2.右上颌窦囊肿。左侧顶叶见一类圆形异常信号影，表现为T1WI中心低、边缘略高信号，T2WI及压水序列为中心高、边缘等信号，DWI为中心低、边缘高信号，增强扫描呈较显著不均匀强化，大小约1.0CM×0.8CM，周围可见斑片状长T2信号影。余脑实质内增强扫描未见异常信号及强化征象。脑室、池、脑沟裂未见异常。中线结构居中，未见移位。右上颌窦可见一长T1长T2信号结节，边界清楚。	</t>
-  </si>
-  <si>
-    <t>左顶叶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后2.左肺门、纵隔淋巴结转移，较前(2015-10-27)变化不著3.双肺炎症及纤维灶，变化不著；双侧胸膜略增厚，变化不著，双侧胸腔积液增多4.双肺小结节灶，变化不著5.肝囊肿、钙化灶6.右肾囊肿7.右肾上腺结节灶，考虑腺瘤，变化不著8.甲状腺低密度灶，变化不著。右乳术后，前胸壁软组织略增厚，未见明显异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺门、纵隔内主肺动脉窗区可见肿大淋巴结，直径约2.0CM。右肺门淋巴结略增大，短径约0.8CM。左肺上叶支气管受压狭窄，远端肺野近纵隔旁可见带状密度增高影，另双肺内见斑片状密度增高影，右肺下叶为著。余双肺散在小结节灶，大者直径约0.4CM。双侧胸膜略增厚，双侧胸腔内可见液性密度影。甲状腺示斑片状低密度灶。肝内见囊性密度灶及斑片状致密影。胆囊壁增厚。右肾示小囊性密度灶。右肾上腺可见结节灶，直径约0.8CM，密度较低，强化不明显。骨窗示多发胸椎椎体、肋骨骨质略示稀疏。	</t>
-  </si>
-  <si>
-    <t>左肺门、纵隔淋巴结</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，双肺癌术后，左肺门区片状影，考虑复发，较前(2014-9-03)变化不著；纵隔淋巴结转移，大部分较前变化不著，部分为新发；左锁上淋巴结较前变化不著；左肺小叶间隔增厚；双肺转移，较前显著；脾内低密度灶，考虑转移，较前增大2.右肺纤维灶及钙化灶3.左肺炎症，较前明显4.左侧腋窝区皮下类结节灶，较前变化不著5.左侧胸腔少量积液。双肺部分术后，术区结构紊乱，周围脂肪间隙模糊，左肺门区可见金属吻合钉影，并可见片状软组织密度影，截面约5.0CM×4.0CM，包埋左肺动脉残端，增强扫描呈中度不均匀强化，向下延续与左下肺静脉关系密切。右肺可见结节状致密影。左肺野可见多发斑片状密度增高影；右肺下叶胸膜下可见斑片状密度增高影，其内可见线状高密度影。左肺野小叶间隔增厚；双肺野示多发类圆形结节灶，大者直径约0.7CM。右侧胸膜示增厚，局部可见钙化。纵隔内气管食管沟2R/L、7/8区见肿大淋巴结，短径约1.2CM，并可见强化，与肿块分界不清。另于左锁上、纵隔内2R、5区见小淋巴结，大者短径约0.6CM。左侧腋窝皮下可见类结节灶，直径约0.3CM，边缘清晰，增强扫描未见强化。左侧胸腔内示少量液体密度影。肝脏实质密度均匀，大小、形态可。胆囊充盈可，壁不厚。脾实质内示一类圆形低密度灶，直径约1.8CM，边缘模糊，轻度强化.胰、脾、双肾上腺及双肾未见异常，腹腔及腹膜后未见肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t>纵隔淋巴结,双肺,脾</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺上叶癌侵及脏层胸膜并双侧锁骨上区、右肺门及纵隔淋巴结转移，骨转移，较前变化不著2.双肺微小结节及双侧肾上腺饱满，变化不著。右肺上叶尖段可见软组织肿块影，最大截面约1.2CM×1.6CM，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；右肺野可见一类结节灶、左肺上叶，大者直径约0.3CM。双侧锁骨上区、右肺门、纵隔内右侧气管食管沟、气管右前、腔静脉后、血管前、主肺动脉窗区及隆突下可见肿大淋巴结，大者短径约1.2CM。肝脏形态、大小可，实质密度均质。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾形态大小密度未见明确异常。双侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。骨窗示锁骨、肋骨、椎体可见多发骨质破坏。	</t>
-  </si>
-  <si>
-    <t>双侧锁骨上区、右肺门及纵隔淋巴结,骨,锁骨,肋骨,椎体</t>
-  </si>
-  <si>
-    <t>右肺下叶背段脊柱旁可见软组织密度结节灶，大小约1.7CM×1.0CM，边缘毛糙，局部与邻近胸膜关系密切，并可见胸膜牵拉征；增强后结节呈中度不均匀强化。右肺下叶见斑片状及条索状密度增高影。右侧胸膜(含叶间胸膜及纵隔胸膜)示不规则增厚，局部呈条状及结节状，增强扫描可见强化。左侧叶间胸膜见多发结节灶。右侧胸腔内可见少量液性密度影，边缘可见膨胀不全肺组织影。双肺门及纵隔内未见肿大淋巴结。肝脏大小、形态可，动脉期实质内见数个强化结节灶，边界较清，强化较显著，门脉及延迟期部分显示不清。另于肝右叶见一低密度灶(图2-55)，边界清，直径约0.8CM，动脉期中心可见强化，门脉及延迟显示欠清。胆囊充盈可，壁不厚。胰腺、脾及双肾未见明确异常。腹腔、腹膜后未见明确肿大淋巴结。腹腔内未见积液征象。	1.结合临床，右肺癌治疗后，较前(2014-11-12)好转；右侧胸膜转移较前变化不著，右侧胸腔积液伴右肺局限性实变，变化不著2.左侧叶间胸膜结节灶，转移不除外，建议观察3.肝内多发强化灶，考虑血管瘤。</t>
-  </si>
-  <si>
-    <t>右肺下叶背段,右肺</t>
-  </si>
-  <si>
-    <t>1.7CM×1.0CM</t>
-  </si>
-  <si>
-    <t>右侧胸膜,左侧叶间胸膜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左肺癌治疗后，较前(2016-4-26)片变化不著，左侧胸膜转移及叶裂转移较前变化不著2.左肺慢性炎症及纤维灶3.左侧心包及心膈角区结节影，较前缩小4.肝囊肿。左肺上叶纵隔旁示一不规则软组织密度结节灶，与纵隔内主肺动脉窗区肿大淋巴结分界不清。左肺野内见斑片索条状密度增高影，左侧叶裂及胸膜可见多发类结节状增厚。右侧肺野较清晰。纵隔内及双肺门未见确切肿大淋巴结。左侧心包及左侧心膈角区可见多发结节影，大者直径不足1.0CM。肝脏大小形态未见异常，肝实质内可见一小低密度灶，边界清。胆囊、胰腺、脾、双肾、肾上腺未见异常，腹腔腹膜后未见肿大淋巴结影。	</t>
-  </si>
-  <si>
-    <t>左侧胸膜,叶裂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左肺癌并阻塞性肺不张，较前(2015-12-14)略示缩小；纵隔淋巴结转移较前变化不著；右肺门淋巴结稍大较前变化不著2.双肺炎症及纤维灶、气肿；双肺类结节灶，较前变化不著3.肝内钙化灶4.肝内低密度灶，考虑囊肿；双肾囊肿。左肺下叶背段支气管截断，断端见软组织密度灶，远端见不张肺组织，内见扩张支气管及其内粘液栓，二者分界不清，增强后前者中等不均匀强化，侵及左下肺门，与左下肺动脉及其分支、降主动脉关系密切。右肺及纵隔见大者短径约0.8CM中等淋巴结。左侧锁骨上见短径不足0.5CM小淋巴结。双肺见少许斑片索条影及少许泡状过度透光区。左肺上叶(5-14、17)见大者长径约0.8CM类结节灶。右肺(5-18、29)见直径不足0.5CM小类结节灶。肝内见斑点状钙化灶及低密度结节灶，后者大者长径约2.0CM，大部分边缘清晰，部分欠清，均未见强化。胆、胰、脾、双侧肾上腺未见异常。双肾见囊性结节灶。腹腔及腹膜后未见肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，直肠癌术后，双肺转移瘤，较前2016-03-15部分缩小，部分略饱满，部分变化不著2.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.0CM(纵隔窗)，内示小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。	</t>
-  </si>
-  <si>
-    <t>左乳外上象限及上份示大者截面约2.4CM×1.8CM不均质显著强化软组织密度灶，边缘分叶、毛糙。余双乳腺体强化欠均。左腋窝示大者短径约1.1CM淋巴结。右腋窝、双侧内乳区、肺门及纵隔内未见肿大淋巴结。右肺内示类结节灶、索条影。甲状腺内示低密度灶。扫描野内肝内示多发低密度灶，增强扫描边缘示斑片状明显强化。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。	1.考虑左乳癌并左腋窝淋巴结转移。2.右肺类结节灶、纤维灶。3.甲状腺低密度灶。4.考虑肝多发血管瘤，请结合其他检查。5.颅脑CT扫描未见明显异常。</t>
-  </si>
-  <si>
-    <t>左乳外上象限</t>
-  </si>
-  <si>
-    <t>2.4CM×1.8CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌治疗后；多发骨转移2.双肺结节及类结节灶，建议密切观察3.双肺气肿。右乳治疗后，腺体结构紊乱，皮肤局部增厚。余双乳腺体结构亦示紊乱。双侧腋窝见短径不足0.5CM小淋巴结。胸廓诸骨示较广泛性成骨性改变。双肺见结节及类结节灶，直径不足0.5CM。双肺见斑片状过度透光区。	</t>
-  </si>
-  <si>
-    <t>左侧乳腺可见弥漫分布的结节样、小片状异常信号区，表现为T1WI等信号，T2WI略高信号，压脂序列高信号，DWI序列高信号，注射对比剂GD-DTPA后呈环形强化，动态增强曲线呈平台型，大者约19MM×10MM，部分病变与胸壁间可见条索相连，左乳皮肤增厚，乳头凹陷。右侧乳腺可见数个强化小结节。所扫左侧腋窝结构紊乱，可见数个大小不等淋巴结，大者直径约10MM。所扫右侧腋窝可见多个小淋巴结。余未见异常。	1.结合临床，左乳癌并左腋窝淋巴结转移，较本院(2014-09-04)MR片好转。2.右乳多发结节灶，考虑良性病变(BI-RADSIII级)，建议观察。</t>
-  </si>
-  <si>
-    <t>19MM×10MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌较前(2016-3-9)变化不著；双肺转移较前大部分变化不著，少部分较前增大，少部分缩小；肝转移、纵隔淋巴结转移较前变化不著；右侧内乳区饱满，变化不著；原脑转移瘤显示不清2.左胸膜局限性增厚，局部钙化，变化不著。右侧乳腺乳头上方见不规则软组织密度肿块影，约6.8CM×5.3CM，边缘分叶，局部与周围腺体及乳头区皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化，其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结，大者短径约0.6CM。右侧内乳区显示饱满。纵隔内心包右旁、气管隆突下及左侧下肺静脉旁及下段食管旁见肿大淋巴结影，大者短径约1.0CM。双肺野散在分布大小不等结节灶，大者直径约1.5CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左胸膜增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。肝实质内见多个低密度灶，大者直径约0.3CM，边缘尚清晰，增强扫描边缘强化显著。胆囊充盈可，壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。脑实质内未见异常密度影，脑沟、脑池未见增宽或狭窄，脑室大小、形态，位置正常，中线结构居中。增强：脑实质未见异常强化，脑沟、脑池、脑室内未见异常。	</t>
-  </si>
-  <si>
-    <t>6.8CM×5.3CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺上叶癌侵及脏层胸膜治疗后，较前(2016-10-10)基本变化不著；多发骨转移，变化不著2.右乳腺体局部密度增高，变化不著。右肺上叶尖段可见软组织密度影，最大截面约0.9CM×1.0CM(纵隔窗)，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；余双肺野较清晰，未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。右乳腺体局部密度增高。肝脏形态、大小可，实质密度均质。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。骨窗示：双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏，以成骨性为主，部分肋骨形态欠规则，略呈膨胀性改变。	</t>
-  </si>
-  <si>
-    <t>0.9CM×1.0CM</t>
-  </si>
-  <si>
-    <t>骨,双侧锁骨,肱骨,肩胛骨,胸骨,多发肋骨,椎骨</t>
-  </si>
-  <si>
-    <t>会诊*******(东院区)(2016-08-17与2016-5-29对比)左侧乳腺术后，术区胸壁未见增厚，左侧部分肋骨骨质密度不均，左前第6肋骨质离断，断端骨质密度增高。右侧乳腺外侧见一椭圆形结节灶，可见强化，长径约1.3CM，其内可见斑点状钙化影。右侧腋窝见强化的淋巴结，大者直径约1.2CM。右肺上叶见片状软组织密度影，边缘毛糙，其内可见小条状金属影，与邻近胸膜关系密切。左肺野近胸壁后方见斑片状高密度影。右侧胸膜及叶间胸膜处见数个小结节灶。左肺下叶近胸膜处见一直径约0.3CM的小结节灶，有条索影与胸膜相连。扫描野所示肝内示囊性密度影。	1.结合临床，左侧乳腺癌术后，左前第6肋骨折，变化不著；2.右侧乳腺强化结节灶，较前(2016-5-29)进展；右侧腋窝淋巴结肿大，较前进展；3.右肺转移灶治疗后改变，双肺炎症，较前(2016-5-29)较前进展；4.右侧胸膜结节灶转移，较前增大；5.左肺下叶结节灶，考虑肺内淋巴结可能大，变化不著；6.肝囊肿。</t>
-  </si>
-  <si>
-    <t>左侧乳</t>
-  </si>
-  <si>
-    <t>右肺,右侧胸膜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合病史，右乳癌术后，肝(多发)及椎体转移，较本院(2016-05-12)MR片示肝转移好转，椎体转移变化不著。2.肝及双肾囊肿。右乳癌术后，术区结构紊乱，局部增强前后未见明显占位性病灶。肝左右叶可见多发大小不等病灶，T1WI呈略低信号，T2WI及压脂像呈略高信号，DWI呈高信号，增强扫描病灶呈不均匀强化，大者约0.6CM位于左外叶。肝实质内及双肾实质内可见散在囊性结节，边界清楚，无强化，大者约1.0CM位于左肾。胆囊不大。脾、胰腺增强前后未见异常信号区。腹膜后未见明显肿大淋巴结。所扫部分椎体可见斑片状骨质破坏区，呈长T1短T2信号，压脂像及DWI为高信号，不均匀强化。余未见异常。	</t>
-  </si>
-  <si>
-    <t>肝,椎体</t>
-  </si>
-  <si>
-    <t>右肺上叶后段近胸膜处示软组织结节灶，增强扫描明显强化，截面约2.1CM×1.7CM。双肺内示泡状过度透光区。纵隔内气管右旁、腔静脉后间隙、隆突下、右肺门示增大淋巴结，大者短径约2.1CM。右侧胸膜增厚呈结节及肿块状，明显强化。右侧胸腔示液体密度影。肝实质内示数个囊性密度灶，大者短径约0.5CM。胆胰脾双肾上腺双肾形态、密度未见明显异常。腹腔及腹膜后未见明显增大淋巴结。鼻咽、口咽、喉咽壁未见明显增厚。右颈部示稍大淋巴结，大者短径约0.4CM。	1.结合临床，右肺癌并右肺门、纵隔淋巴结转移；右侧胸膜转移2.肝囊肿3.颈部扫描未见明显异常。</t>
-  </si>
-  <si>
-    <t>右肺门、纵隔淋巴结,右侧胸膜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合乳癌术后病史，颈胸腰骶椎多发转移。2.腰骶椎退行性变，椎间盘L5/S1膨出。3.胸腰椎T10、L2椎体异常信号，考虑脂肪岛。4.考虑子宫肌瘤。所扫颈胸腰骶椎C7~T3、T7、T10、L1、L3~5及S1椎体及部分附件可见结节状、斑片状或整个椎体骨质信号异常，表现为T1WI、T2WI低信号，压脂序列为高信号。腰骶椎曲度略变直，部分椎体前缘见棘样突起，L3椎体前下缘见片状异常信号影，另胸腰椎T10、L2椎体见结节状T1WI、T2WI高信号影，压脂序列为低信号。椎间盘L5/S1向后膨，相应硬膜囊受压略变形，椎间隙略变窄。扫描野内子宫体积增大，其内见一较大肿块影，截面约3.9CM×3.2CM，表现为T1WI等信号，T2WI、压脂序列为低信号，边界清晰。	</t>
-  </si>
-  <si>
-    <t>颈胸腰骶椎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">结合临床，右肺癌伴纵隔淋巴结转移，左肾上腺转移右小脑结节灶，考虑转移右额顶部低密度区，必要时进一步检查。右肺上叶前、后段支气管狭窄，后段支气管旁可见软组织密度结节，最大横截面约2.1CM×2.5CM，密度不均，边缘毛糙，增强可见不均匀强化；病灶远端肺野可见少许斑片状影。双下肺可见少量索条。纵隔内腔静脉后间隙、气管隆突下可见增大淋巴结，大者短径1.5CM，不均匀强化。肝实质均质，未见异常密度灶。胆、胰腺、脾及所扫双肾未见异常。左肾上腺区可见一软组织密度肿块，最大横截面约2CM×4CM，不均匀强化。腹腔腹膜后未见明确增大淋巴结。右小脑可见一强化灶，直径约1.5CM，周围可见少许低密度水肿带。右侧额顶部可见片状低密度区，未见明确强化灶。脑室形态可，中线结构居中	</t>
-  </si>
-  <si>
-    <t>2.1CM×2.5CM</t>
-  </si>
-  <si>
-    <t>纵隔淋巴结,左肾上腺,右小脑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.肝囊肿。2.双肾上腺体积增大，不除外转移，建议观察3.结合临床，右肺癌，纵隔内多发淋巴结转移4.颈部扫描未见异常.。肝脏大小形态未见异常，肝实质内可见多发囊性低密度灶，边界清，增强扫描无强化。胆囊、胰腺、脾、双肾未见异常，双肾上腺体积略示增大，以左侧为著，长径约1.8CM，形态不规则。腹腔腹膜后未见肿大淋巴结影。所扫右肺中叶近肺门处示不规则软组织密度影，远侧肺组织示实变征象，周围多发多发条索状及斑片状密度增高影，与周围组织关系密切，增强扫描示中度强化。各咽壁不厚，双侧颈部未见肿大淋巴结影。腮腺及双侧甲状腺未见异常。所扫上纵隔内可见多发肿大融合的淋巴结。	</t>
-  </si>
-  <si>
-    <t>双肾上腺,纵隔内多发淋巴结</t>
-  </si>
-  <si>
-    <t>子宫及双侧附件术后，阴道残端未见显著增厚。膀胱充盈好，充盈高密度影，壁无增厚。盆腔内肠间隙可见少量液性密度影。盆腔内未见显著增大淋巴结。肝实质密度均匀，未见异常密度灶。肝包膜下可见低密度影，强化不著。网膜区可见结节灶，边缘模糊，短径约1.0CM，密度较低，强化不著。肠系膜区可见结节影(图4-38)，边缘模糊，直径约0.8CM，可见较显著强化。胆囊充盈可，壁增厚。胰脾及双侧肾上腺未见异常。双肾实质示低密度灶，大者直径约0.4CM，边界尚清。心膈角区(图4-1、12)可见强化淋巴结，大者短径约1.6CM。余腹腔腹膜后未见确切肿大淋巴结。肠间隙可见少量液体密度影。右肺野见少许高密度条索影，左肺野清晰。右侧胸膜呈结节状增厚并强化。双肺门及纵隔未见明显肿大淋巴结。左乳外上象限可见一强化结节灶，直径约1.5CM，边缘略示毛糙。右侧胸腔内示少量液体密度影。	1.结合临床，卵巢癌术后；心膈角区淋巴结转移；右侧胸膜转移；右侧肠系膜区强化结节灶，考虑转移；肝包膜下及网膜区低密度灶，请结合前片；左乳强化灶，首先考虑转移瘤2.少量腹水、盆腔积液；右侧胸腔少量积液3.胆囊炎4.双肾低密度灶，囊肿可能大，建议观察5.右肺纤维灶。</t>
-  </si>
-  <si>
-    <t>心膈角区淋巴结,右侧胸膜,右侧肠系膜区,左乳</t>
-  </si>
-  <si>
-    <t>右乳术后，右胸壁(4-22)见一直径不足0.5CM小类结节。右腋窝结构紊乱，未见肿大淋巴结。左乳及左腋窝未见异常。左肺可见少许条索状密度增高影。右肺上叶可见一类结节灶，边界模糊。双侧内乳区、肺门、纵隔内未见肿大淋巴结。肝脏实质内可见多发低密度肿块，大者直径约4.2CM，边缘模糊，轻度强化。胆囊充盈可，壁示增厚。胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔腹膜后未见肿大淋巴结。胸骨及胸椎局部密度稍高。	1.结合临床，右乳癌术后，右胸壁类结节灶，较前2017-1-10强化减低；肝转移，大部分变化不著，部分增大，部分略缩小；右肺结节灶，变化不著2.左肺纤维灶，变化不著3.胆囊炎4.部分骨质密度稍高，变化不著。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.左肺下叶癌，较前2016-10-11范围基本变化不著，内可见气体影，请结合临床；左肺门、纵隔淋巴结转移，左肺门者略饱满、密度局部减低，余大部分略缩小2.双肺炎症，略增多；双肺气肿3.左锁上淋巴结略大，变化不著4.左侧肾上腺结节灶，转移不除外5.肝右叶强化欠均，右肾低密度灶，请结合其他检查或观察。左肺下叶可见一不规则肿块，截面约7.2CM×7.0CM，边缘分叶，与胸膜关系密切，周围示斑片及絮状密度增高影，增强扫描病变呈较显著不均匀强化，其内见低密度区及斑片状气体影。双肺野见较多片状高密度影。余双肺多发泡状过度透光灶。左肺门及纵隔多发增大淋巴结，大者短径约3.2CM，部分融合。左锁上淋巴结略大，短径约0.6CM。扫描野内左侧肾上腺示小结节灶。肝右后叶强化欠均。右肾上极示斑片状低密度灶，边界欠清。	</t>
-  </si>
-  <si>
-    <t>7.2CM×7.0CM</t>
-  </si>
-  <si>
-    <t>左肺门、纵隔淋巴结,左侧肾上腺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后改变，较前(2016-3-25)变化不著；肝转移，好转；考虑骨转移，较前密度增高2.右肺局限性纤维灶3.右肺小结节灶，考虑转移，部分显示欠清，部分变化不著4.考虑肝囊肿5.胆囊炎6.胰头部密度略减低，变化不著。右乳术后，术区结构紊乱，周围间隙模糊，皮下可见少许片絮状密度增高影，胸壁未见明显增厚。右侧腋窝结构紊乱，未见异常强化。左乳形态、密度未见异常，右侧腋窝见小淋巴结，短径不足0.5CM。左腋窝、双侧颈后三角区及左侧锁骨上示短径不足1.0CM淋巴结。双侧内乳区、肺门及纵隔未见增大淋巴结。右肺野内见数个小结节灶，大者长径约0.3CM(肺窗)。另右肺近前胸壁下示条片影。甲状腺右叶密度减低。肝内示低密度灶，边缘模糊，大者短径约1.0CM。另肝内示类囊性密度灶。胆囊壁增厚。胰头部密度略减低。腹腔、腹膜后未见肿大淋巴结。部分椎骨密度不均，以T10为著。	</t>
-  </si>
-  <si>
-    <t>肝,骨,右肺</t>
-  </si>
-  <si>
-    <t>左乳术后，术区结构紊乱，未见结节及结节灶。左侧腋窝结构紊乱。右乳未见异常。左侧内乳见增大淋巴结，短径约0.8CM。左侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰，未见结节及异常强化灶。肝实质内见多发低密度结节及肿块，大者直径约3.7CM。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及双肾未见异常。腹腔及腹膜后未见明显肿大淋巴结。	1.结合临床，左乳癌术后改变，左侧内乳淋巴结肿大2.肝转移，较前片2014-4-2进展。</t>
-  </si>
-  <si>
-    <t>双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.0CM(纵隔窗)，内示小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。	1.结合临床，直肠癌术后，双肺转移瘤，较前变化不著2.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著。</t>
-  </si>
-  <si>
-    <t>左肺门周围可见不规则软组织密度肿块影，约4.7CM×3.8CM，增强扫描呈明显不均匀强化，与其远端不张的肺组织、肺门淋巴结、纵隔内软组织及心包分界不清。双肺内见多发斑片状密度增高影。左肺上叶示一结节灶，直径约0.9CM，双侧胸膜及叶间胸膜上可见多发类结节灶。纵隔内示多发融合的淋巴结影，大者短径约1.2CM。心包内及左胸腔内可见液性密度影。肝脏大小形态未见异常，肝实质内可见数个低密度灶，部分边界清，部分边缘显示模糊。左肾示斑片状低密度灶。另双肾内示小囊性密度灶。胰尾部示低密度影。胆囊、脾、左肾上腺未见异常，右肾上腺示一类结节灶，长径约3.9CM。腹腔内示短径不足1.0CM淋巴结。腹膜后未见肿大淋巴结影。部分椎骨、肋骨密度略增高。	1.左肺中心型肺癌累及肺门、纵隔及心包、阻塞性肺不张，较前(2017-2-14)进展；肺炎治疗后，较前变化不著；左肺上叶结节灶较前变化不著，考虑转移；双侧胸膜多发结节灶，考虑转移，部分较前增大；纵隔淋巴结转移，较前增大；右肾上腺转移，较前增大2.肝内低密度灶，部分考虑囊肿，部分建议观察；双肾囊肿；左肾低密度灶，较前增大；胰腺低密度灶，变化不著3.心包、左胸腔少量积液，较前变化不著4.部分椎骨及肋骨密度略增高，考虑转移，较前变化不著。</t>
-  </si>
-  <si>
-    <t>.左肺中心型</t>
-  </si>
-  <si>
-    <t>4.7CM×3.8CM</t>
-  </si>
-  <si>
-    <t>右肾上腺,左肺上叶,双侧胸膜,纵隔淋巴结,右肾上腺,椎骨,肋骨</t>
-  </si>
-  <si>
-    <t>左乳术后缺如，部分胸肌存在，术区未见明显增厚及异常强化；左侧腋窝术后，结构紊乱。右乳腺体结构紊乱，右侧腋窝未见明确异常。双肺门、纵隔内、右锁上、右侧内乳区可见多发肿大淋巴结，大者短径约2.3CM，可见较显著强化。右侧胸膜呈弥漫性增厚，局部呈结节状及线状，增强后呈较显著强化。左侧叶间胸膜局部可见结节灶。右肺上叶可见结节灶，边界清晰，直径约0.2CM。双侧肺野内可见斑片状及条索状密度增高影，局部小叶间隔增厚。双侧胸腔内可见液性密度影，右侧为著，局部呈包裹状。部分胸椎椎体、右侧第四、五前肋示成骨性骨质改变。心包腔内可见液性密度影。肝脏实质内可见多发低密度肿块及结节灶，边缘模糊，轻度强化。双肾实质内可见散在多发低密度灶，边缘模糊，轻度强化。胆囊壁略增厚。胰、脾、双侧肾上腺未见异常。腹腔及腹膜后可见多发肿大淋巴结，大者短径约1.5CM。大网膜及肠系膜局部略增厚。	1.左乳癌术后，肝脏多发转移；双肾低密度灶，考虑转移；双肺门、纵隔、右侧内乳区、腹腔及腹膜后多发淋巴结转移；右侧胸膜转移；多发骨转移。2.右锁上淋巴结肿大。3.左侧叶间胸膜增厚伴结节灶，转移待排，4.右肺上叶结节灶。5.双肺炎症，局部不除外伴有癌性淋巴管炎。6.双侧胸腔积液；心包积液。7.胆囊炎。8.大网膜及肠系膜局部增厚。</t>
-  </si>
-  <si>
-    <t>肝脏,双肾,双肺门、纵隔、右侧内乳区、腹腔及腹膜后多发淋巴结,右侧胸膜,骨,左侧叶间胸膜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺上叶癌侵及脏层胸膜并双侧锁骨上区、右肺门及纵隔淋巴结转移，较前(2016-02-18)略好转；骨转移2.双侧肾上腺饱满，变化不著3.子宫未见显示，建议结合临床。右肺上叶尖段可见软组织肿块影，最大截面约1.0CM×1.4CM(肺窗)，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；余双肺野较清晰，未见明确异常密度灶。双侧锁骨上区、右肺门、纵隔内右侧气管食管沟、气管右前、腔静脉后、主肺动脉窗区及隆突下可见肿大淋巴结，大者短径不足1.0CM。肝脏形态、大小可，实质密度均质。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾形态大小密度未见明确异常。双侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。膀胱充盈可，壁不厚。子宫未见显示。盆腔内未见明确肿大淋巴结。骨窗示双侧锁骨、左侧肱骨、双侧肩胛骨、胸骨、双侧多发肋骨、多发胸腰骶椎椎体、双侧髂骨、耻骨及坐骨、双侧股骨可见多发骨质破坏。	</t>
-  </si>
-  <si>
-    <t>1.0CM×1.4CM</t>
-  </si>
-  <si>
-    <t>双侧锁骨上区、右肺门及纵隔淋巴结,骨,双侧锁骨,左侧肱骨,双侧肩胛骨,胸骨,双侧多发肋骨,多发胸腰骶椎椎体,双侧髂骨,耻骨,坐骨,双侧股骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.考虑右乳癌并右腋窝淋巴结转移，请结合其他检查。2.右肺类结节灶，建议观察；双肺纤维灶。右乳外下象限示长径约1.1CM不均质强化结节灶，边界欠清，向局部前达皮下。余双乳腺体强化欠均质，内示小斑片状强化灶。右侧腋窝示大者短径约1.9CM淋巴结，强化较著。左侧锁骨上示短径不足0.5CM淋巴结。左侧腋窝、纵隔及双肺门未见肿大淋巴结。右肺尖区示小类结节灶，余双肺内示索条影。	</t>
-  </si>
-  <si>
-    <t>1.1CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合乳癌病史，右顶叶转移瘤，较本院(2016-05-25)MR片好转；腰椎L1~3转移。2.腰椎退行性变。右顶叶上矢状窦右旁见一类圆形异常信号，表现为T1WI等信号，T2WI略高信号，压水像及DWI为等信号，增强扫描可见明显强化，大小约0.3CM×0.5CM，于冠状位可见结节与脑膜关系密切，周围未见明显水肿带。余脑实质增强前后未见异常信号。脑室系统无扩张。中线结构居中。腰椎生理弯曲略变直，部分椎体前缘见棘样突起，腰椎L1、L2椎体后下缘及L3椎体后缘可见斑片状长T1短T2信号，压脂序列呈高信号，边缘模糊，增强后扫描呈轻度强化。所扫腰骶椎椎管内未见异常占位性病灶。	</t>
-  </si>
-  <si>
-    <t>右顶叶,腰椎L1~3</t>
-  </si>
-  <si>
-    <t>左乳术后缺如，胸肌尚存，左侧胸大小肌之间见一软组织肿块影，边缘模糊，直径约1.7CM，增强后示中度不均质强化。另于前胸壁皮肤局部增厚呈软组织密度影，增强后示中度强化。左锁上、左肺门、纵隔内右上气管旁、主肺动脉窗区、腔静脉后方、气管隆突下小淋巴结，大者短径不足1.0CM。双肺见小结节灶(图6-19、26、27、35)，直径不足0.5CM，增强后示强化。肝左外叶内见一低密度灶，边缘略示模糊，大者直径不足0.5CM。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及右肾未见异常。左肾缺如。腹腔及腹膜后未见明显肿大淋巴结。骨窗示：胸骨、部分胸腰椎椎体、肋骨见骨质破坏区，骶骨未见明显异常。	结合临床，左乳癌术后，术区复发并前胸壁转移2.左锁上、左肺门、纵隔淋巴结肿大3.双肺转移4.多发骨转移。</t>
-  </si>
-  <si>
-    <t>胸骨,部分胸腰椎椎体,肋骨,前胸壁,双肺,骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺上叶癌侵及脏层胸膜治疗后，较前(2017-2-3)基本变化不著；多发骨转移，变化不著2.右乳腺体局部密度增高，变化不著；肝左叶低密度影，变化不著。右肺上叶尖段可见软组织密度影，最大截面约0.9CM×1.0CM(纵隔窗)，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；余双肺野较清晰，未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。右乳腺体局部密度增高。肝脏形态、大小可，左叶局限性灌注不均。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。骨窗示：双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏，以成骨性为主，部分肋骨形态欠规则，略呈膨胀性改变。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.考虑右乳癌；右侧腋窝淋巴结肿大，考虑转移2.甲状腺低密度灶，考虑良性，建议观察3.上腹部扫描未见异常。右乳外上象限见一软组织密度结节灶，长径约3.3CM，边缘毛刺，与正常腺体分界不清，同侧皮肤显示增厚，增强扫描病变呈较显著强化。右侧腋窝见多发肿大淋巴结，大者短径约0.9CM，增强扫描可见强化。左乳未见异常。左侧腋窝及双侧内乳区未见肿大淋巴结。双侧肺野清晰。纵隔及双肺门未见肿大淋巴结。双锁上见大者短径不足0.5CM小淋巴结。扫描野内甲状腺右叶见一低密度灶，直径约1.1CM，边界较清，增强扫描强化不著。肝脏形态、大小正常，实质密度均质。胆囊充盈可，壁不厚。胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。	</t>
-  </si>
-  <si>
-    <t>3.3CM</t>
-  </si>
-  <si>
-    <t>左乳内示多发结节灶灶，边缘略分叶，毛刺，其与周围腺体分界欠清，增强扫描呈较明显强化，大者最大截面约2.2CM×1.1CM。左锁上、左腋窝示增大淋巴结，大者短径约0.9。右乳未见明显异常。右腋窝及双侧内乳区未见明显增大淋巴结。双肺野清，未见明显异常密度灶。纵隔及双肺门未见明显增大淋巴结。鼻咽、口咽、喉咽壁未见明显增厚。左颈下深示稍大淋巴结，大者短径约0.5CM。扫描范围内诸骨质未见明显破坏。	1.结合临床，左乳癌2.左腋窝及左锁上淋巴结肿大，考虑转移可能性大；左颈部淋巴结肿大。</t>
-  </si>
-  <si>
-    <t>2.2CM×1.1CM</t>
-  </si>
-  <si>
-    <t>左腋窝及左锁上淋巴结</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后；右肺转移治疗后，较前(2016-9-13)基本变化不著；原左肺结节灶，考虑转移，较前缩小；脑转移，较前基本消失不清2.纵隔增大淋巴结，部分略缩小；右肺门淋巴结稍大；左侧锁骨上淋巴结，较前缩小3.肝转移治疗后，较前增大，请结合临床4.左肾囊肿5.右肺少许炎症、纤维灶，基本变化不著；左肺小类结节灶，变化不著6.右侧部分肋骨及部分椎骨略高密度影，变化不著7.双侧胸腔及心包少量积液。右乳术后，术区未见增厚及异常强化征象；右腋窝结构紊乱。左乳未见异常。左腋窝示小淋巴结，短径不足0.5CM。左侧锁骨上示短径不足0.5CM小淋巴结。右肺上叶示团片状密度增高影，密度较均。左肺下叶示类圆形低密度影，内示斑点状致密影，边界欠清。左肺上叶胸膜下示小类结节灶。余肺内示斑片影及索条影，右肺为著。右肺门及纵隔内示大者短径约0.8CM淋巴结。双侧胸腔及心包见少许液性密度影。肝实质内示多发低密度灶，边缘欠清，部分融合，大者长径约3.4CM，部分内示斑点斑片状致密影。胆胰脾双肾上腺未见明显异常。左肾示囊性密度灶，未见强化。余双肾内示斑片状低密度影。腹腔及腹膜后未见明显增大淋巴结。左侧半卵圆中心区局部密度偏低，未见明确强化灶。脑室系统未见明显异常。中线结构无移位。右侧部分肋骨及部分椎骨示略高密度影。	</t>
-  </si>
-  <si>
-    <t>右肺,左肺,脑,肝</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后2.右颈部淋巴结肿大，左肾多发低密度灶，以上转移均不除外，建议密切观察或结合临床3.双肺炎症4.脂肪肝5.右肾低密度灶，建议观察6.颅脑扫描未见异常。右乳术后，术区结构紊乱，胸肌存在，壁未见增厚及异常强化。右侧腋窝结构紊乱。左侧腋窝、双侧内乳区、肺门及纵隔未见增大淋巴结。双肺见多发索条及小斑片影。双侧胸膜未见增厚。双侧胸腔未见积液征象。右侧颈后三角区见一短径约0.9CM肿大淋巴结。肝实质密度显著均匀性减低。胆、胰、脾、双侧肾上腺未见异常。右肾见一直径不足0.5CM小低密度灶，边缘清晰。左肾见多发低密度结节及斑片影，边缘不清。腹腔及腹膜后未见增大淋巴结。脑实质密度均匀，未见结节及异常强化灶。脑室脑池未见扩张。中线结构居中。	</t>
-  </si>
-  <si>
-    <t>右颈部淋巴结,左肾</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌，较前(2016-1-28)进展；阻塞性肺炎，略减轻；纵隔及右肺门淋巴结转移，较前进展；右肺中叶转移结节，较前增大2.甲状腺低密度灶，考虑结节性甲状腺肿，变化不著3.肝囊肿4.右肺炎症，较前局部好转；双肺气肿5.右侧胸腔积液，较前减少；心包腔积液，略增多6.胆囊炎；胆囊内结节影，考虑小息肉，变化不著7.部分椎体密度不均，较前局部加重，转移可能性大，请结合ECT。右肺水平裂旁见一软组织密度肿块，大小约4.5CM×3.4CM，边缘毛刺、浅分叶，局部牵拉邻近肋胸膜凹陷，病变周围肺野内见少许条索及斑片影，增强扫描病变呈轻度不均匀强化。右肺中叶见一直径约1.8CM结节灶，与上述病变分界不清。右肺野内见多发斑片状及条索状密度增高影。双肺野内见多发囊泡状过度透光区。纵隔及右肺门见肿大淋巴结，大者短径约1.7CM，增强扫描呈不均匀强化。扫描野内甲状腺右侧叶上极见一低密度灶，直径约1.9CM，边界较清晰，增强扫描可见强化，甲状腺被膜完整。心包内及右侧胸腔内见弧形液性密度影。肝实质内见多发囊性密度灶，大者直径约1.8CM，边界清，无强化。胆囊充盈可，壁略厚，其内见结节状高密度影，直径不足0.5CM。胰、双侧肾上腺及双肾未见异常。脾内见一直径不足0.5CM小低密度结节。腹腔及腹膜后未见增大淋巴结。部分椎体密度不均。	</t>
-  </si>
-  <si>
-    <t>右肺水平裂旁</t>
-  </si>
-  <si>
-    <t>4.5CM×3.4CM</t>
-  </si>
-  <si>
-    <t>纵隔及右肺门淋巴结,右肺中叶,椎体</t>
-  </si>
-  <si>
-    <t>左乳术后缺如，胸肌尚存，左侧胸大小肌之间见一软组织肿块影，边缘模糊，直径约2.8CM，增强后示中度不均质强化。另于前胸壁皮肤见一突起的软组织密度灶，长径约4.0CM，增强后示中度强化。双锁上、左肺门、纵隔内右上气管旁、血管前间隙、主肺动脉窗区、腔静脉后方、气管隆突下示肿大淋巴结，大者短径约1.0CM。双侧肺野内见多发结节灶，边缘清晰，大者直径约1.1CM，增强后示强化。鼻咽、口咽、喉咽形态可，各壁未见明显增厚及强化。双颈动脉鞘未见肿大淋巴结。骨窗示：多发胸椎、肋骨、腰椎L5椎体上缘可见高密度骨质破坏区，骶骨未见明显异常	结合临床，左乳癌术后，术区复发并前胸壁转移，较前14.5.9略示缩小；左颈部、双锁上、左肺门、纵隔淋巴结肿大，考虑转移，部分缩小；双肺转移，略示好转；伴多发骨转移。</t>
-  </si>
-  <si>
-    <t>多发胸椎,肋骨,腰椎L5椎体上缘,前胸壁,左颈部、双锁上、左肺门、纵隔淋巴结,双肺,骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左乳癌术后，术区复发，较前(2016.6.16)变化不著；左锁上、颈部、左肺门、纵隔及膈上淋巴结转移治疗后，基本变化不著；双肺转移，部分缩小，部分变化不著；多发肝转移，部分增大，部分变化不著；多发骨转移，部分略明显，部分变化不著。2.颈背部结节，不除外转移，变化不著。3.腹腔略大淋巴结，变化不著。4.双肺炎症，略减轻。5.左肩部脂肪瘤。6.左肾未见显示。左乳术后缺如，胸肌尚存，左侧胸壁见软组织影，边缘模糊，大者短径约1.5CM，示明显不均质强化，邻近前胸壁皮肤局部增厚呈软组织密度影，明显强化。双锁上、左肺门、纵隔、左侧颈后三角区、膈上见增大淋巴结，边界尚清，大者短径约1.0CM。双肺见结节灶，大者长径约0.8CM，双肺纹理增强并见斑片模糊略高密度影。甲状腺形态饱满，密度不均。下颈背部皮下见一长径约1.0CM的强化灶。左肩部皮下示脂肪样密度影。肝内见多发低密度灶，边缘轻度强化，大者长径约3.8CM。胆囊、胰脾、双侧肾上腺及扫描野内右肾未见异常。扫描野内左肾未见显示。腹腔及腹膜后见稍大淋巴结，边界不清。骨窗示：胸骨、肩胛骨、多发椎骨、肋骨、右肱骨见骨质破坏区。	</t>
-  </si>
-  <si>
-    <t>左锁上、颈部、左肺门、纵隔及膈上淋巴结,双肺,肝,骨,颈背部,胸骨,肩胛骨,多发椎骨,肋骨,右肱骨</t>
-  </si>
-  <si>
-    <t>双乳术后缺如，术区结构紊乱，部分胸壁组织尚存，双侧腋窝清扫术后，双乳术区、左侧颈前、左侧胸部及左侧肩部皮下见多发结节灶及肿块影，大者约3.0CM×2.3CM，增强扫描呈较显著不均匀强化。双肺见多发结节灶及肿块影，大者位于左肺门，直径约3.0CM，包绕邻近上叶支气管及左下肺动脉致其狭窄，并与邻近不张肺组织及纵隔内肿大淋巴结分界不清，增强扫描呈不均匀强化。纵隔内右侧气管食管沟区、血管前间隙、右上气管旁、气管隆突下及双肺门见多发肿大淋巴结，大者短径约1.9CM，增强扫描呈不均匀强化。左侧胸腔内及心包腔内见液性密度影。扫描野内甲状腺双侧叶密度欠均质。脑实质内密度均质，未见异常密度影。脑沟、脑池未见增宽，脑室大小、形态，位置正常，中线结构居中。骨窗示：T5椎体骨质密度不均，可见多发骨质密度减低区。	1.结合临床，双侧乳腺癌术后局部复发并多发皮下转移，双肺转移，纵隔淋巴结转移，T5椎体破坏，考虑转移2.左侧胸腔中量积液；少量心包积液3.颅脑扫描未见异常。</t>
-  </si>
-  <si>
-    <t>皮下,双肺,纵隔淋巴结,T5椎体</t>
-  </si>
-  <si>
-    <t>左肺下叶支气管截断，局部可见软组织密度影，与远端不张肺组织及肺门、纵隔淋巴结分界不清。余双侧肺野内可见小结节灶及多发囊泡状过度充气区。纵隔内气管周围、腔静脉后气管前间隙、主肺动脉窗区、隆突下、双肺门示多发增大淋巴结，部分融合成团，与周围结构分界不清，大小不易测量。心包及左侧胸腔示液性密度影。扫描野左肾上腺可见软组织密度影，长径约5.2CM，轻度强化。肝内示多发小斑片状低密度影，强化不著，边界不清。左肾示片状低密度灶。左侧第4肋形态欠规则。	1.结合临床，左肺癌并阻塞性肺不张，较前(2016-2-14)进展；双肺门、纵隔淋巴结转移，较前增大；左肾上腺转移，较前增大2.双肺结节灶，建议观察；双肺气肿3.心包及左侧胸腔少量积液4.肝及左肾低密度灶，建议观察5.左侧第4肋骨折，变化不著。</t>
-  </si>
-  <si>
-    <t>双肺门、纵隔淋巴结,左肾上腺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后改变，双肺转移，较前(2015-1-6)变化不著；肝转移，部分较前进展，部分较前好转；多发骨转移较前变化不著2.右侧腋窝囊性密度灶较前变化不著3.左肺炎症，较前加重，右肺纤维灶4.左侧胸腔积液。右乳术后缺如，部分胸肌尚存，术区未见异常强化灶。右侧腋窝结构紊乱，局部示一囊性密度灶，直径约2.4CM，可见环形强化。左乳及左侧腋窝未见异常。双肺野示多发结节灶，边缘较清，大者直径约0.3CM。右肺上叶及左肺下叶可见斑片状条索状密度增高影。双肺门及纵隔未见增大淋巴结。左侧胸腔内可见液性密度影。肝实质内示数个低密度灶，边缘较模糊，可见轻度强化，大者直径约2.1CM。胆囊充盈可，壁不厚。胰、脾、双肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。。部分胸腰椎及附件、部分肋骨可见成骨性骨质破坏。	</t>
-  </si>
-  <si>
-    <t>双肺,肝,骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右侧中心型肺癌并阻塞性不张治疗后，右肺中下叶不张并右肺下动脉、肺静脉及左心房栓子形成；右肺门淋巴结肿大，较前(2015-12-1)增大；右侧胸膜增厚，考虑转移，较前明显；骨转移，变化不著；脑转移，基本变化不著2.心包积液，变化不著；右侧胸腔积液3.右侧乳腺术后改变4.肝内钙化灶5.鼻旁窦炎。右肺中下叶体积缩小、密度不均匀性增厚，支气管显示不清，部分血管变细，右肺下动脉、肺静脉及左心房示充盈缺损影。右肺支气管血管束增粗，余双肺内示索条影。右侧胸膜增厚并可见强化。右侧胸腔及心包内示液性密度影。右侧乳腺术后缺如，术区未见明显增厚及异常强化。左乳未见异常。双侧腋窝、内乳区未见明显肿大淋巴结。右肺门示增大淋巴结，与周围结构分界不清。双锁上见增大淋巴结，大者短径约0.9CM。纵隔内4R、4L、5区、7区见多发小淋巴结，大者短径约0.5CM。肝内示颗粒状钙化密度影。胆囊、胰腺、脾、扫描野内双肾及肾上腺未见明显异常。腹腔、腹膜后未见肿大淋巴结。左侧大脑内示结节、肿块影，大者截面约2.9CM×3.4CM，其内呈囊性密度灶，增强扫描呈边缘环形强化；周围示片状无强化的低密度水肿带，邻近侧脑室局部略示受压。中线结构无移位。双侧上颌窦及筛窦内示液体密度影。骨窗：胸骨、部分椎骨骨质密度不均匀增高。	</t>
-  </si>
-  <si>
-    <t>右侧中心型肺</t>
-  </si>
-  <si>
-    <t>右侧胸膜,骨,脑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.右乳癌并右侧腋窝淋巴结转移2.右肺类结节，建议观察3.上腹部扫描未见异常。右乳外下见一截面约4.1CM×5.2CM软组织肿块，不均匀强化，边缘模糊，周围脂肪间隙密度增高。右侧腋窝见短径约2.1CM肿大淋巴结。右肺中叶见一直径不足0.5CM小类结节灶。双侧肺门及纵隔未见增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝、胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。	</t>
-  </si>
-  <si>
-    <t>4.1CM×5.2CM</t>
-  </si>
-  <si>
-    <t>右侧乳腺术后，术区胸壁部分胸肌尚存，右侧胸壁近胸骨旁软组织增厚，相邻胸骨骨质破坏。扫描野内右侧颈后三角区、右侧内乳区及纵隔内见多发增大淋巴结，部分边界欠清。左侧乳腺未见异常。左侧腋窝见直径不足1.0CM淋巴结。双肺野见数个结节灶，大者直径不足1.0CM。甲状腺内示低密度灶，边界欠清。部分肋骨及椎骨骨质密度不均，左侧部分肋骨骨质欠连续。	1.结合临床，右侧乳腺癌术后，右侧胸壁复发并累及胸骨、右侧颈部、右侧内乳区、纵隔淋巴结转移治疗后，较前(2016-9-7)好转2.左侧腋窝淋巴结稍大，略缩小3.双肺结节灶，不除外转移，较前好转4.部分肋骨及椎骨骨质密度不均，基本变化不著，请结合骨扫描5.甲状腺低密度灶。</t>
-  </si>
-  <si>
-    <t>双肺,胸骨、右侧颈部、右侧内乳区、纵隔淋巴结,双肺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合病史，右乳癌术后改变，术区胸壁强化欠均匀，建议观察；考虑骨转移并部分肋骨骨折2.左肺下叶类结节，较前2015-08-19基本变化不著3.右肺炎症。右乳术后缺如，术区结构紊乱，部分胸壁组织尚存，胸壁略增厚并强化欠均匀。右侧腋窝呈术后改变，未见异常密度灶。左乳未见异常。左侧腋窝见多发小淋巴结，大者短径约0.6CM，其内可见脂肪密度影。双侧内乳区、双肺门及纵隔未见确切肿大淋巴结。左肺下叶见一类结节灶，直径约0.4CM，密度较高。右肺胸膜下见斑片状及条索状密度增高影。右侧多发肋骨示溶骨性及成骨性骨质改变，部分骨皮质欠连续。	</t>
-  </si>
-  <si>
-    <t>小脑、右额叶、右枕顶叶、左顶叶见散在数个、大小不等的结节样异常信号，部分病灶周围伴有小片状或斑片状长T2信号的水肿带，病灶表现为T1WI略低或低、高信号，T2WI及压水像为高或混杂高信号，DWI序列为低、高或高信号，增强扫描呈结节样或不均匀强化，大者约0.8CM×1.8CM位于右枕顶叶。左顶叶可见点状异常信号影，平扫各序列均为低信号，无强化。中线结构居中。右上颌窦内可见一囊性结节，边界清楚。余未见异常。	1.结合右肺癌病史，脑多发转移瘤。2.考虑左顶叶钙化灶。3.右上颌窦囊肿。</t>
-  </si>
-  <si>
-    <t>小脑,右额叶,右枕顶叶,左顶叶,脑</t>
-  </si>
-  <si>
-    <t>右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。另右肺下叶小叶间隔增厚。余双肺野可见小类结节灶，边缘模糊，大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径约1.1CM，部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。肝内见一斑点状钙化灶。胆囊充盈可，壁未见增厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。肝胃韧带区示结节灶，大者短径约0.6CM。T12右侧椎弓根示斑片状密度增高影。	1.结合临床，右肺癌治疗后，较前片2015-3-12示缩小；双肺类结节灶治疗后，部分显示不清，部分变化不著；右肺门、纵隔淋巴结转移治疗后，部分略示缩小，部分变化不著。2.右肺下叶炎症，右肺下叶小叶间隔增厚，变化不著。3.右侧少量胸腔积液，变化不著；右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根密度增高影，变化不著。</t>
-  </si>
-  <si>
-    <t>右肺上叶后段近胸膜处示软组织结节灶，形态不规则，截面约2.4CM×2.2CM。双肺内示泡状过度透光区。纵隔内气管右旁、腔静脉后间隙、隆突下、右肺门示增大淋巴结，大者短径约1.4CM。右侧胸膜增厚呈结节及肿块状。右侧胸腔示液体密度影。	1.结合临床，右肺癌，较前(2014-11-14)略似饱满；右肺门并纵隔淋巴结转移，较前部分进展，部分变化不著；右侧胸膜转移，较前部分好转，部分变化不著；右侧胸腔积液，较前略减少。</t>
-  </si>
-  <si>
-    <t>2.4CM×2.2CM</t>
-  </si>
-  <si>
-    <t>纵隔淋巴结,右侧胸膜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后；部分椎体密度增高，考虑转移，较前片(2016，08，23)变化不明显2.肝囊肿3.左肺类结节，变化不明显；右肺少许纤维灶4.肝内强化灶，考虑血管瘤。肝脏大小形态可，实质内示低密度影，边界清晰，增强扫描未见强化，直径不足0.5CM。另肝左叶动脉期见一长径约0.7CM强化结节，延迟呈等密度。胆囊不大，壁不厚。胰腺、双侧肾脏、双侧肾上腺及脾未见异常。腹腔及腹膜后未见肿大淋巴结。右乳术后，术区结构紊乱，胸肌存在，壁未见增厚及异常强化。右侧腋窝结构紊乱。左侧腋窝、双侧内乳区、肺门及纵隔未见增大淋巴结。左肺见小类结节，直径不足0.5CM。右肺见少许索条影。双侧胸膜未见增厚。双侧胸腔未见积液征象。椎体局部密度增高。	</t>
-  </si>
-  <si>
-    <t>右肺下叶支气管周围可见一不规则软组织密度肿块影，约2.2CM×2.1CM，与其远端斑片状密度增高影，向内与肺门淋巴结分界不清。双肺野内散在囊泡状过度透光灶，右肺上叶示一钙化结节灶。右肺门、纵隔内示多发肿大融合的淋巴结影，大者短径约1.3CM。左侧胸膜略示增厚。颈部未见明显异常。肝胆胰脾双肾上腺双肾形态、密度未见明显异常。腹腔及腹膜后未见明显增大淋巴结。	1.右肺下叶肺癌并阻塞性肺不张、肺炎；右肺门、纵隔淋巴结转移，上述病变较前2017-1-9示好转。2.双侧胸膜略增厚。3.右肺上叶钙化灶。4.双肺气肿。5.颈部及上腹部未见明显异常。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.右肺下叶中心型肺癌累及肺门、纵隔并阻塞性肺不张、肺炎；右肺门、纵隔淋巴结转移，上述病变较前2016-11-1好转。2.肝、右肾囊肿。3.双颈部小淋巴结。4.双侧胸膜略增厚。5.右肺上叶钙化灶。6.双肺气肿。右肺下叶支气管周围可见一不规则软组织密度肿块影，约4.4CM×4.8CM，增强扫描呈明显不均匀强化，与其远端不张的肺组织分界不清，远端可见斑片状密度增高影，向内与肺门淋巴结分界不清，与纵隔内软组织及心包、大血管分界不清，余双肺野内散在囊泡状过度透光灶，右肺上叶示一钙化结节灶。右肺门、纵隔内示多发肿大融合的淋巴结影，大者短径约3.4CM。左侧胸膜略示增厚。肝实质内见点状钙化灶及小囊肿。异常密度影。右肾见囊肿。胆囊、胰腺、脾、左肾、肾上腺未见异常，腹腔腹膜后未见肿大淋巴结影。各咽壁不厚，双侧颈部示数个结节灶，大者短径约0.8CM。腮腺及双侧甲状腺未见异常。	</t>
-  </si>
-  <si>
-    <t>4.4CM×4.8CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，直肠癌术后，双肺转移瘤，较前2015-08-06变化不著。2.双肾低密度灶，较前无明显变化，建议继续观察或结合MR检查。3.双侧胸膜略增厚，变化不著。双肺近胸膜下示多个结节灶，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约2.1CM，内示斑点状致密影及小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。肝脏实质密度均匀，未见明显异常密度灶。肝内外胆管未见扩张。胆囊充盈可，壁增厚。双肾见多发低密度灶，边界较清，右侧部分密度略高。胰腺、脾及肾上腺形态、大小、密度未见异常。肠系膜区及腹膜后示短径不足0.5CM小淋巴结。直肠术后，吻合口未见增厚及异常强化。膀胱、前列腺及双侧精囊腺未见异常。盆腔内未见肿大淋巴结及积液。	</t>
-  </si>
-  <si>
-    <t>右肺上叶尖段可见软组织密度影，最大截面约0.9CM×1.1CM(纵隔窗)，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；余双肺野较清晰，未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。右乳腺体局部密度增高。肝脏形态、大小可，实质密度均质。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。骨窗示：双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏，以成骨性为主，部分肋骨形态欠规则，略呈膨胀性改变。	1.结合临床，右肺上叶癌侵及脏层胸膜治疗后，较前(2016-8-18)基本变化不著；多发骨转移，变化不著2.右乳腺体局部密度增高，变化不著。</t>
-  </si>
-  <si>
-    <t>0.9CM×1.1CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左肺癌并阻塞性肺不张，较前(2016-1-27)进展；纵隔淋巴结转移较前变化不著；右肺门淋巴结稍大较前变化不著2.双肺炎症及纤维灶、气肿；双肺类结节灶，较前变化不著3.肝内钙化灶4.肝内低密度灶，考虑囊肿；双肾囊肿。左肺下叶背段支气管截断，断端见软组织密度灶，远端见不张肺组织，内见扩张支气管及其内粘液栓，二者分界不清，增强后前者中等不均匀强化，侵及左下肺门，与左下肺动脉及其分支、降主动脉关系密切。右肺及纵隔见大者短径约0.8CM中等淋巴结。左侧锁骨上见短径不足0.5CM小淋巴结。双肺见少许斑片索条影及少许泡状过度透光区。左肺上叶(5-12、15)见大者长径约0.8CM类结节灶。右肺(5-17、27)见直径不足0.5CM小类结节灶。肝内见斑点状钙化灶及低密度结节灶，后者大者长径约2.0CM，大部分边缘清晰，部分欠清，均未见强化。胆、胰、脾、双侧肾上腺未见异常。双肾见囊性结节灶。腹腔及腹膜后未见肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后，右侧胸壁局部斑片形轻度代谢，考虑术后改变。2.肝转移瘤治疗后仅肝左外叶病灶略高代谢。多发骨转移治疗后呈成骨性改变，未见确切异常代谢；原肺转移治疗后病变消失。3.双侧锁骨上小淋巴结，未见高代谢；纵隔7区略高代谢淋巴结，余纵隔淋巴结未见异常代谢；右上臂局部未见异常代谢；请结合既往影像学资料。4.肝内钙化灶。5.子宫肌瘤。6.左侧上颌窦粘膜囊肿。静脉注射示踪剂FDG后60MMIN行PET/CT显像。PET/CT图像示右侧乳腺癌术后缺如，右侧胸壁局部脂肪密度增高，局部斑片状轻度放射性摄取增高，最高SUV2.3，余右侧胸壁未见显著增厚及明显异常放射性摄取。右侧腋窝脂肪密度增高，结构略紊乱，未见明显确切异常放射性摄取增高的淋巴结。左侧腋窝淋巴结未见显著增大及明显异常放射性摄取。右上臂皮下局部脂肪组织轻度斑片状放射性摄取增高，最高SUV1.2，考虑术后改变，余右上臂软组织未见明显异常放射性摄取。部分胸骨、右侧肩胛骨、左侧第7肋骨、右侧第8肋骨、T2、T5、T6、T7、T9椎体、双侧髂骨、部分骶骨、右侧髋臼、左侧股骨上段多发骨质局部密度增高，未见明显确切异常放射性摄取。肝左叶示一结节灶，长径约1.1CM，轻度放射性摄取增高，最高SUV4.1，延迟扫描为2.6。视野内多发胸腰椎、骨盆诸骨、双侧肱骨上段、双侧股骨上段多发骨髓轻度放射性摄取增高，最高SUV3.2，考虑反应性改变。双肺示少许斑片影或条索影，双肺未见明显异常放射性摄取结节灶。双肺门淋巴结未见明显肿大及明显异常放射性摄取。纵隔7区示放射性摄取略增高的淋巴结，短径约0.6CM，最高SUV2.9。气管居中。右侧胸膜局部增厚。大脑形态如常，皮层各叶放射性分布均匀。皮层下各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深。小脑显影如常，两侧小脑对称。左侧上颌窦示类圆形囊性密度灶，边缘清晰。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。左侧上颌窦内见1.0CM囊性密度灶。双侧锁骨上区示小淋巴结，大者短径约0.7CM，未见明显异常放射性摄取。胃壁未示显著增厚，局部环形放射性摄取增高，最高SUV4.4。余肝内未见确切异常放射性摄取增高灶。肝右叶示结节状钙化，长径约0.9CM，边缘清晰。胆囊大小正常，密度均匀。胰腺形态放射性分布尚好。脾轻度显影，放射性分布欠均匀。两侧肾脏显影可，肾实质密度均匀。两侧肾上腺显影大致正常。腹部见条索状肠影。盆腔内膀胱放射性浓聚如常。两侧腹股沟无异常淋巴结显示。子宫体积增大，局部向前凸出形成较大结节，无异常放射性浓聚。两侧附件区未见异常放射性摄取。	</t>
-  </si>
-  <si>
-    <t>肝,骨,肺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后，肝转移2.胆囊炎。右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内未见肿大淋巴结。双肺野清晰。肝脏实质内可见数个低密度结节灶，大者直径约0.9CM，边缘模糊，轻度强化。胆囊充盈可，壁示增厚。胰、脾及扫描野内双肾未见异常。腹膜后未见肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.左肺下叶癌，左肺门、纵隔淋巴结转移，较前2016-07-15范围基本变化不著，肿块内囊性坏死区较前增多，考虑略好转，请结合临床；淋巴结较前部分略增大，大部分变化不著2.双肺炎症，较前进展；双肺气肿3.左锁上淋巴结略大4.原片所示肝内低密度灶显示不清，建议观察5.左肾小囊肿。左肺下叶可见一不规则肿块，截面约7.2CM×7.0CM，边缘分叶，与胸膜关系密切，周围示斑片及絮状密度增高影，增强扫描病变呈较显著不均匀强化，其内见较多低密度坏死囊变区。双肺野见较多片状高密度影。余双肺多发泡状过度透光灶。左肺门及纵隔多发肿大淋巴结，大者短径约3.6CM。左锁上淋巴结略大，短径约0.6CM。肝实质密度均匀，未见异常密度灶。胆囊充盈可，壁略厚。胰脾肾上腺及右肾未见异常。左肾见囊性小结节灶。腹腔腹膜后未见明显肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌并阻塞性肺不张治疗后，较前(2016-5-26)变化不明显；双肺多发转移，进展；骨转移，变化不明显2.肝囊肿3.右肾低密度灶，变化不著4.部分肋骨密度增高，变化不著。右肺中叶支气管开口处见一不规则低密度影，边缘模糊，大小不易测量，增强后可见轻度强化，远端示片状肺不张影。双肺见多发结节灶，部分边界欠清。纵隔内未见明显肿大淋巴结。肝实质内见多发囊性密度灶，大者直径不足1.0CM。右肾见直径约0.5CM低密度灶，未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔内肝胃韧带区及肝十二指肠韧带区见短径不足0.5CM小淋巴结。腹膜后未见肿大淋巴结。部分椎骨示成骨性破坏。右侧第3肋局限性骨质密度增高。	</t>
-  </si>
-  <si>
-    <t>小脑、双颞叶、双顶叶及左额叶见多发结节样异常信号影，表现为T1WI低信号，T2WI及压水序列高信号，DWI序列呈等、高信号，增强扫描呈结节样或环形强化，大者约1.9CM×2.4CM×1.5CM位于左顶叶，部分病灶周围脑实质内见小片状或片状长T2水肿带。左侧侧脑室后角略受压变形。中线结构居中。左乳突可见小片状长T2信号影。余未见异常。	1.结合右肺癌病史，符合脑多发转移瘤MR表现，较本院(2014-11-12)MR片示进展。2.左乳突炎症。</t>
-  </si>
-  <si>
-    <t>右乳外上象限可见一不规则软组织密度肿块，边缘明显分叶，周围可见条索影，肿块截面大小约1.0CM×1.4CM，增强后可见病变显著强化。余右侧乳腺内可见显著强化小结节灶。右侧腋窝可见小淋巴结，大者短径约0.5CM。左乳及左侧腋窝未见异常。右侧内乳区略饱满。右肺上叶及左肺下叶可见散在类结节灶，边界较清，大者直径约0.3CM；余双肺野清晰，肺纹理走形自然，气管及各级支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶，边界清晰，未见强化。腹腔内肝胃韧带区见多发增大淋巴结，大者短径约0.8CM。腹膜后未见增大淋巴结。脑实质密度均质，未见明确异常密度灶。脑室、池未见扩张，中线结构居中。骨窗示：扫描野内右侧髂骨、多发胸腰骶椎椎体、左侧锁骨、右侧肩胛骨、部分肋骨呈成骨性及溶骨性骨质破坏，局部呈膨胀性改变。	1.右乳癌并右侧腋窝转移，较前(2015-08-13)好转；多发骨转移，较前密度增高2.双肺类结节灶，纤维灶可能，建议观察3.右肾囊肿4.腹腔内淋巴结肿大5.颅脑扫描未见明确异常。</t>
-  </si>
-  <si>
-    <t>右侧腋窝,骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合乳癌病史，脑多发转移瘤。2.左上颌窦炎。脑干、双侧大脑及小脑半球见多发大小不等的结节样异常信号，表现为T1WI低、略低信号，T2WI略高、高信号，压水序列高信号，DWI序列低、高信号，增强扫描呈结节样、环形或不均匀强化，大者约1.6CM×2.1CM，部分病变周围脑白质见小片状或片状长T2信号水肿带，四脑室及双侧侧脑室略受压变形。中线结构居中。左上颌窦可见小片状长T2信号区。余未见异常。	</t>
-  </si>
-  <si>
-    <t>右乳术后，前胸壁软组织略增厚，未见明显异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺门、纵隔内主肺动脉窗区可见肿大淋巴结，直径约1.8CM。右肺门淋巴结略增大，短径约0.8CM。左肺上叶支气管受压狭窄，远端肺野近纵隔旁可见带状密度增高影，另双肺内见斑片状密度增高影，右肺下叶为著。余双肺散在小结节灶，大者直径约0.4CM。双侧胸膜略增厚。甲状腺示斑片状低密度灶。扫描野内肝左叶示小类圆形低密度灶(3-45)，强化不著，边缘欠清晰。余肝内见囊性密度灶及斑片状致密影。右肾示小囊性密度灶。右肾上腺可见结节灶，直径约0.8CM，密度较低，强化不明显。	1.结合临床，右乳癌术后2.左肺门、纵隔淋巴结转移，较前(2015-6-3)变化不著3.双肺炎症，局部示好转；双侧胸膜略增厚4.双肺小结节灶，变化不著5.肝左叶低密度灶，建议观察；肝囊肿、钙化灶6.右肾囊肿7.右肾上腺结节灶，考虑腺瘤，变化不著8.甲状腺低密度灶。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后；肝转移，较前2016-09-01进展；右肺结节灶，较前缩小2.左肺纤维灶3.胆囊炎。右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱，未见肿大淋巴结。左乳及左腋窝未见异常。左肺可见少许条索状密度增高影。右肺上叶可见一类结节灶，边界模糊。双侧内乳区、肺门、纵隔内未见肿大淋巴结。肝脏实质内可见多发低密度肿块，大者直径约4.0CM，边缘模糊，轻度强化。胆囊充盈可，壁示增厚。胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔腹膜后未见肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t>右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺下叶可见条索状密度增高影，余肺野清晰。纵隔内未见肿大淋巴结。双肺野清晰。肝脏实质内可见多发低密度肿块，大者直径约2.7CM，边缘模糊，轻度强化。胆囊充盈可，壁示增厚。胰、脾及扫描野内双肾未见异常。腹膜后未见肿大淋巴结。	1.结合临床，右乳癌术后，肝转移，较前2015-2-25进展2.左肺下叶纤维灶3.胆囊炎。</t>
-  </si>
-  <si>
-    <t>右肺门支气管开口纹理粗乱伴胸膜增厚，周围可见纤维条索影，下叶近纵隔旁并可见斑片状高密度影，边缘模糊。双肺见散在少许类结节及片絮影，左肺大者直径约0.5CM(肺窗5-32)。左侧锁骨上及双肺门见小淋巴结。右侧胸腔示少量液性密度影。肝、胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常，腹膜后腹主动脉周围可见多发结节灶，大者短径约1.0CM。颅骨完整连续，脑实质密度均匀，脑池、脑室、脑沟大小、位置、形态未见异常，中线结构居中。	1.结合临床，右肺癌治疗后，局限性纤维炎性变，局部高密度斑片影较前(2016-10-12)变化不著；双肺散在类结节及片絮影，较前变化不著；腹膜后淋巴结肿大，考虑转移。2.颅脑扫描未见异常。3.右侧少量胸腔积液。</t>
-  </si>
-  <si>
-    <t>腹膜后淋巴结</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左乳癌术后，术区复发，较前片(2016.05.13)变化不著；左锁上、颈部、左肺门、纵隔及膈上淋巴结转移，较前部分变化不著，部分略示好转；双肺转移，较前变化不著；多发肝转移，较前大部变化不著，部分略好转。2.多发骨转移，较前变化不著。颈背部结节，不除外转移，较前变化不著。腹腔略大淋巴结，较前变化不著。3.双肺炎症。左乳术后缺如，胸肌尚存，左侧胸壁见软组织影，边缘模糊，大者短径约1.5CM，示明显不均质强化，邻近前胸壁皮肤局部增厚呈软组织密度影，明显强化。双锁上、左肺门、纵隔、左侧颈后三角区、膈上见肿大淋巴结，边界尚清，大者短径约1.0CM。双肺见结节灶，大者直径约1.0CM，双肺纹理增强并见斑片模糊略高密度影。下颈背部皮下见一长径约1.0CM的强化灶。肝内见多发低密度灶，边缘轻度强化，大者长径约3.2CM。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及右肾未见异常。扫描野内左肾未见显示。腹腔及腹膜后见稍大，边界不清。骨窗示：胸骨、部分胸腰椎椎体、肋骨见骨质破坏区。	</t>
-  </si>
-  <si>
-    <t>左锁上、颈部、左肺门、纵隔及膈上淋巴结,双肺,肝,骨,颈背部</t>
-  </si>
-  <si>
-    <t>右肺下叶胸膜下可见一不规则软组织密度灶，大小约2.2CM×1.6CM，边缘毛糙、浅分叶，与胸膜关系密切，增强扫描呈较显著强化。左肺可见类结节影(图3-25、27等)，直径约0.3CM，边缘较清。左肺下叶可见一类结节影(图3-33)，边缘模糊。右侧胸膜(含叶间胸膜)增厚，可见多发结节灶，增强扫描可见强化。右侧胸腔内示弧形液体密度影。右肺门及纵隔内右上气管前、气管隆突周围可见多发增大淋巴结，大者短径约0.8CM。左肾上腺略示饱满。	1.结合临床，右肺癌并右侧胸膜(含叶间胸膜)转移；右肺门、纵隔淋巴结肿大，转移可能大；左肺小结节灶，考虑转移2.左肾上腺略示饱满，转移待排3.右侧少量胸腔积液4.左肺下叶类结节影，建议观察。</t>
-  </si>
-  <si>
-    <t>2.2CM×1.6CM</t>
-  </si>
-  <si>
-    <t>左肺,右侧胸膜(含叶间胸膜),左肾上腺,右侧胸膜(含叶间胸膜),纵隔淋巴结,左肾上腺</t>
-  </si>
-  <si>
-    <t>左乳术后，术区皮肤略增厚，皮下脂肪层密度增高，未见结节及异常强化灶。左侧腋窝结构紊乱，见少许斑片状低密度，未见异常强化，考虑为术后改变。右侧胸膜下、双侧斜裂胸膜见多发结节灶，大者长径约0.6CM。右肺下叶见少许索条影。左侧内乳区见短径不足0.5CM小淋巴结。双侧肺门及纵隔未见增大淋巴结。左侧甲状腺见小低密度灶，直径不足0.5CM。第1腰椎体局限骨质密度减低。第5胸椎压缩变扁，其后缘见软组织肿块并侵及邻近椎管，其上下椎体骨质亦局限性破坏。脑实质密度均匀，未见结节及异常强化灶。大枕大池。中线结构居中。	1.结合临床，左乳癌术后；右肺胸膜下及双侧斜裂区结节灶，考虑转移，请结合临床；多发骨转移并软组织肿块形成并侵及邻近椎管2.左侧内乳区小淋巴结3.右肺下叶纤维灶4.大枕大池5.左侧甲状腺低密度灶。</t>
-  </si>
-  <si>
-    <t>右肺胸膜下,双侧斜裂区,骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌并右肺下叶炎症，较前片2016-12-15基本稳定；右肺类结节，变化不著；右肺门、纵隔淋巴结转移治疗后，较前变化不著。2.右侧胸膜略增厚，变化不著3.肝内钙化灶。4.T12右侧椎弓根密度增高影，变化不著。5.心脏体积增大；冠脉钙化。6.右侧胸腔积液，其内夹层高密度影，考虑出血可能大，请结合临床。右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。右肺见小类结节灶，边缘模糊，直径不足0.5CM。左肺野清晰。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径不足1.0CM，部分增强后强化显著。右侧胸膜略增厚。心脏体积增大，冠脉可见钙化。右侧胸腔示液体密度影，其内夹层部分高密度影，平扫示CT值约56HU，增强扫描强化不著。肝内强化不均质，肝右叶见一斑点状钙化灶。T12右侧椎弓根示斑片状密度增高影。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌治疗后，右肺癌性淋巴管炎及炎症，较前(2014-09-18)变化不著；右肺结节灶，较前增大2.右侧胸膜略增厚，变化不著3.冠状动脉钙化4.约第一腰椎骨质破坏，骨转移不能除外，较前(2014-07-16)片变化不著。右肺下叶局部小叶间隔增厚呈网格状，周围见斑片索条状密度增高影；其内可见一类圆形结节灶(图4-41)，直径约0.6CM，边界清晰。左肺野清晰，未见结节及异常强化灶。冠状动脉左、右支见条状致密影。右侧胸膜(含右侧叶间胸膜)局限性增厚。双侧胸腔未见积液征象。纵隔内未见明显肿大淋巴结。扫描野内约第一腰椎可见骨质破坏。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后2.左腋窝小淋巴结；纵隔淋巴结略增大3.脂肪肝；肝囊肿；脾内低密度灶，考虑囊肿4.胆囊结石5.考虑多发骨转移，较前进展6.考虑子宫肌瘤。右乳术后缺如，术区未见异常增厚及强化。左乳未见异常。左腋窝示数个小淋巴结，大者短径约0.5CM。右锁骨上区脂肪间隙略示模糊；上纵隔气管右旁及腔静脉后气管前示略大淋巴结，短径约0.7CM。肝脏密度减低。胆囊可见结节状致密影。肝及脾内均示低密度灶，大者直径约1.3CM，边界清，强化不著。双肺野清晰。子宫区见软组织肿块影，边缘清晰，密度均匀，大者直径约3.3CM。盆腔充盈可，壁不厚。盆腔内未见明显肿大淋巴结。左侧肱骨头、左侧部分肋骨、胸腰椎椎体及右侧股骨可见骨质破坏。	</t>
-  </si>
-  <si>
-    <t>左上肺门区可见不规则软组织密度肿块，边缘分叶，左肺上叶支气管显示截断，周围肺野内可见絮状及条索状密度增高影，增强后肿块呈较显著不均匀强化。双侧胸膜局部示不均匀增厚，局部呈类结节灶，局部可见钙化灶。双侧肺门区及纵隔内可见多发肿大淋巴结，部分融合成团，大者短径约2.5CM，部分与支气管左侧壁关系密切，增强后可见不均质强化。肝脏实质内可见弥漫多发结节灶，大者直径约1.5CM，边缘模糊，轻度强化。胆囊壁增厚并强化。胰、脾、双肾及右肾上腺未见异常。左侧肾上腺可见软组织密度结节灶，直径约1.4CM，可见较显著强化。肝胃韧带区、腹主动脉周围可见多发肿大淋巴结，大者短径约1.5CM。	1.左肺中心型肺癌并左肺下叶阻塞性炎症，左肺门、纵隔多发淋巴结转移，肝脏多发转移2.左侧肾上腺结节，考虑转移可能性大3.右肺门、腹腔及腹膜后淋巴结肿大4.双侧叶间胸膜增厚伴散在多发结节，转移待排5.胆囊炎。</t>
-  </si>
-  <si>
-    <t>肝脏,左侧肾上腺,左肺门、纵隔多发淋巴结,肝脏,左侧肾上腺,双侧叶间胸膜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后；右肺转移治疗后，较前(2017-1-20)基本变化不著；原左肺结节灶，较前变化不著；脑转移，较前基本消失不清2.纵隔增大淋巴结，变化不著；右肺门淋巴结稍大；左侧锁骨上淋巴结，变化不著3.肝转移治疗后，较前略进展4.左肾囊肿5.右肺少许炎症、纤维灶，基本变化不著；左肺小类结节灶，变化不著6.右侧部分肋骨及部分椎骨略高密度影，变化不著。右乳术后，术区未见增厚及异常强化征象；右腋窝结构紊乱。左乳未见异常。左腋窝示小淋巴结，短径不足0.5CM。左侧锁骨上示短径约0.7CM淋巴结。右肺上叶示团片状密度增高影，密度较均，病变周围见多发小结节灶及斑片状密度增高影。左肺下叶示类圆形低密度影，内示斑点状致密影，边界欠清。左肺上叶胸膜下示小类结节灶。余肺内示斑片影及索条影，右肺为著。右肺门、纵隔及右侧心隔角区示大者短径约0.8CM淋巴结。肝实质内示多发低密度灶，边缘欠清，部分融合，大者长径约5.0CM，部分内示斑点斑片状致密影。胆胰脾双肾上腺未见明显异常。左肾示囊性密度灶，未见强化。余双肾内示斑片状低密度影。腹膜后见增大淋巴结，直径不足1.0CM。左侧半卵圆中心区局部密度偏低，未见明确强化灶。脑室系统未见明显异常。中线结构无移位。右侧部分肋骨及部分椎骨示略高密度影。	</t>
-  </si>
-  <si>
-    <t>右肺,脑,肝</t>
-  </si>
-  <si>
-    <t>左乳术后缺如，胸肌尚存，左侧胸壁见软组织影，边缘模糊，大者短径约1.8CM，示明显不均质强化，邻近前胸壁皮肤局部增厚呈软组织密度影，明显强化。双锁上、左肺门、纵隔、左侧颈后三角区、膈上见肿大淋巴结，边界尚清，大者短径约1.2CM。双肺见结节灶，大者直径约1.0CM，双肺纹理增强并见斑片模糊略高密度影。下颈背部皮下见一长径约1.3CM的强化灶。肝内见多发低密度灶，边缘轻度强化，大者长径约3.2CM。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及右肾未见异常。扫描野内左肾未见显示。腹腔及腹膜后见稍大，边界不清。骨窗示：胸骨、部分胸腰椎椎体、肋骨见骨质破坏区。	1.结合临床，左乳癌术后，术区复发，较前片(2016.03.01)略示好转；左锁上、颈部、左肺门、纵隔及膈上淋巴结转移，总体较前略示好转；双肺转移，较前略示好转；多发肝转移，较前进展。2.多发骨转移，较前变化不著。颈背部结节，不除外转移，较前变化不著。腹腔略大淋巴结，较前变化不著。3.双肺炎症。</t>
-  </si>
-  <si>
-    <t>双肺,肝,胸骨、部分胸腰椎椎体、肋骨,左锁上、颈部、左肺门、纵隔及膈上淋巴结,双肺,肝,骨,颈背部</t>
-  </si>
-  <si>
-    <t>右乳术后，术区未见增厚及异常强化征象；右腋窝结构紊乱。左乳未见异常。左腋窝示小淋巴结，短径不足0.5CM。左侧锁骨上示短径不足0.5CM小淋巴结。右肺上叶示团片状密度增高影，密度较均。左肺下叶示类圆形低密度影，内示斑点状致密影，边界欠清。左肺上叶胸膜下示小类结节灶。余肺内示斑片影及索条影，右肺为著。右肺门及纵隔内示大者短径约0.8CM淋巴结。肝实质内示多发低密度灶，边缘欠清，部分融合，大者长径约3.6CM，部分内示斑点斑片状致密影。胆胰脾双肾上腺未见明显异常。左肾示囊性密度灶，未见强化。余双肾内示斑片状低密度影。腹腔及腹膜后未见明显增大淋巴结。左侧半卵圆中心区局部密度偏低，未见明确强化灶。脑室系统未见明显异常。中线结构无移位。右侧部分肋骨及部分椎骨示略高密度影。	1.结合临床，右乳癌术后；右肺转移治疗后，较前(2016-12-19)基本变化不著；原左肺结节灶，较前变化不著；脑转移，较前基本消失不清2.纵隔增大淋巴结，变化不好租；右肺门淋巴结稍大；左侧锁骨上淋巴结，变化不著3.肝转移治疗后，较前基本变化不著4.左肾囊肿5.右肺少许炎症、纤维灶，基本变化不著；左肺小类结节灶，变化不著6.右侧部分肋骨及部分椎骨略高密度影，变化不著。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳术后复发侵及纵隔，骨转移2.颅脑扫描未见明确异常。右乳术后缺如，部分胸肌尚存，胸骨右旁可见软组织肿块影，最大截面约2.3CM×5.0CM，显著强化，向后累及前纵隔，其内胸骨示稀疏破坏。右侧腋窝呈术后状态，未见肿大淋巴结。左乳及左侧腋窝未见明确异常。双侧肺野清晰，肺纹理走形自然，气管及各级支气管通畅。双侧内乳区、纵隔及双肺门未见明确肿大淋巴结。脑实质密度正常，未见明显异常密度灶。脑室、池无扩张，脑沟、裂无增深，中线结构居中，颅骨诸骨质未见破坏。骨窗示部分胸椎椎体可见溶骨性破坏。	</t>
-  </si>
-  <si>
-    <t>纵隔,骨</t>
-  </si>
-  <si>
-    <t>右侧乳腺术后，术区胸壁部分胸肌尚存，右侧胸壁近胸骨旁软组织增厚，相邻胸骨骨质破坏。扫描野内右侧颈后三角区、右侧内乳区及纵隔内见多发增大淋巴结，部分边界欠清。左侧乳腺未见异常。左侧腋窝见直径不足1.0CM淋巴结。双肺野见数个结节灶，大者直径不足1.0CM。甲状腺内示低密度灶，边界欠清。部分肋骨及椎骨骨质密度不均，左侧部分肋骨骨质欠连续。	1.结合临床，右侧乳腺癌术后，右侧胸壁复发并累及胸骨治疗后，较前(2016-11-8)略好转；右侧颈部、右侧内乳区、纵隔淋巴结转移治疗后，部分缩小，部分变化不著2.左侧腋窝淋巴结稍大，略缩小3.双肺结节灶，不除外转移，变化不著4.部分肋骨及椎骨骨质密度不均，基本变化不著5.甲状腺低密度灶，变化不著。</t>
-  </si>
-  <si>
-    <t>右侧颈部、右侧内乳区、纵隔淋巴结,双肺</t>
-  </si>
-  <si>
-    <t>左乳术后，术区结构紊乱，未见结节及肿块。左侧腋窝结构紊乱。右乳未见异常。左侧内乳见增大淋巴结，短径约0.8CM。左侧腋窝、双侧肺门及纵隔未见增大淋巴结。右侧水平裂区(3-21)见一类结节灶，直径约0.2CM。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝实质内见多发低密度结节及肿块，大者直径约3.8CM，边缘略模糊，其密度不均。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及双肾未见异常。腹腔内肝总动脉见短径约0.6CM小淋巴结。腹膜后未见增大淋巴结。	1.结合临床，左乳癌术后改变；左侧内乳淋巴结肿大，较前(2014-7-4)变化不著2.肝转移，较前大部分变化不著，部分略增大。</t>
-  </si>
-  <si>
-    <t>左乳偏外侧象限见多发结节灶，部分边缘模糊、毛糙，大者职敬业1.7CM；增强扫描呈较显著不均匀强化。左侧腋窝见软组织密度影，边缘较毛糙，截面积约1.6CM×1.2CM；增强扫描呈较显著不均匀强化。左锁上间隙较模糊，可见片状低密度影，未见明确异常占位。纵隔内见小淋巴结影，大者短径约0.5CM。双肺野内见多发结节灶，部分边缘模糊，形态欠规则，大者直径约0.7CM。肝脏大小、形态可，实质密度均质。胆囊充盈欠佳，壁增厚并强化。左肾见小囊性密度灶。胰腺、脾、双侧肾上腺及右肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。膀胱壁不厚。子宫及双附件未见明确异常。盆腔内未见明确肿大淋巴结。右侧多发肋骨、左侧髂骨、左侧耻骨及坐骨示溶骨性骨质破坏。	1.结合临床，考虑左乳癌；左侧腋窝软组织影，考虑转移；骨转移；考虑双肺转移2.左侧锁骨上间隙模糊，建议结合临床3.胆囊炎4.左肾囊肿。</t>
-  </si>
-  <si>
-    <t>1.7CM</t>
-  </si>
-  <si>
-    <t>右侧多发肋骨,左侧髂骨,左侧耻骨,坐骨,左侧腋窝软组织,骨,双肺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌治疗后，较前片2016-03-03略饱满；双肺类结节灶治疗后，变化不著；右肺门、纵隔淋巴结转移治疗后，较前变化不著。2.右肺下叶炎症、纤维灶，变化不著。3.右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根密度增高影，变化不著。6.颅脑扫描未见明确异常。右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。余双肺可见小类结节灶，边缘模糊，大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径不足1.0CM，部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。肝实质密度欠均匀，其内见一斑点状钙化灶。胆囊充盈可，壁未见增厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。肝胃韧带区示结节灶，大者短径约0.6CM。T12右侧椎弓根示斑片状密度增高影。脑实质密度均质，未见明确异常密度灶。脑室、池未见扩张，中线结构居中。	</t>
-  </si>
-  <si>
-    <t>左肺门周围可见不规则软组织密度肿块影，约5.9CM×7.2CM，增强扫描呈明显不均匀强化，与其远端不张的肺组织分界不清，向内与肺门淋巴结分界不清，与纵隔内软组织及心包分界不清，余双肺野内未见异常密度影，双侧胸膜及叶间胸膜上可见多发类结节灶，大者约1.0CM。纵隔内2R、4R、4L、5、6、7、8区示多发肿大融合的淋巴结影，大者短径约1.8CM。心包内可见少量液性密度影。左胸腔内可见弧形液性密度影。肝脏大小形态未见异常，肝实质内可见数个囊性低密度灶，边界清，增强扫描无强化。胆囊、胰腺、脾、双肾、左肾上腺未见异常，右肾上腺示一类结节灶，长径约3.3CM。腹腔腹膜后未见肿大淋巴结影。	1.左肺中心型肺癌累及肺门、纵隔及心包，阻塞性肺不张、肺炎；双侧胸膜多发结节灶，考虑转移；纵隔淋巴结转移；右肾上腺转移；2.肝囊肿；3.心包、左胸腔少量积液。</t>
-  </si>
-  <si>
-    <t>5.9CM×7.2CM</t>
-  </si>
-  <si>
-    <t>双侧胸膜,右肾上腺,双侧胸膜,纵隔淋巴结,右肾上腺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合乳癌术后病史，考虑胸椎T12转移；2.胸椎T8、T11结节灶，考虑脂肪岛；3.椎间盘T11/12、L2/3、L3/4、L4/5突出；4.骶管囊肿。胸腰椎椎体曲度略变直。胸椎T12椎体右后示斑片状略短、略长T1略长T2信号，压脂像呈低、略高信号，增强扫描呈轻度强化。胸椎T8、T11椎体示类圆形短T1长T2信号，压脂像呈低信号，增强扫描无强化。椎间盘T11/12、L2/3、L3/4、L4/5向后突出，压迫硬膜囊。所扫脊髓及马尾区增强前后未见明显异常信号。平骶椎S2水平骶管内可见一约1.0CM×1.7CM的囊性结节，边界清楚，无强化。	</t>
-  </si>
-  <si>
-    <t>胸椎T12</t>
-  </si>
-  <si>
-    <t>左乳外上象限可见一软组织肿块影，最大截面约1.1CM×1.6CM，边缘浅分叶毛糙，增强扫描持续性强化，余左乳可见多发结节状片状强化灶。右乳未见异常。左侧腋窝、胸肌后方可见多发稍淋巴结，大者短径约0.6CM。双肺野清晰，肺内未见实质性病变。双肺门及纵隔内未见肿大淋巴结。脑实质密度均质，其内未见异常密度灶，增强扫描未见异常强化。诸脑室池未见扩张，中线结构居中。	1.左乳占位，考虑乳腺癌并左侧腋窝、胸肌后方淋巴结转移2.颅脑扫描未见异常。</t>
-  </si>
-  <si>
-    <t>1.1CM×1.6CM</t>
-  </si>
-  <si>
-    <t>左侧腋窝、胸肌后方淋巴结</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌并双肺转移、肝转移、纵隔淋巴结转移较前病灶示缩小；右侧内乳区饱满，变化不著；原脑转移瘤显示不清2.左肺胸膜局限性增厚，局部钙化，变化不著。右侧乳腺乳头上方见不规则软组织密度肿块影，约6.8CM×5.3CM，边缘分叶，局部与周围腺体及乳头区皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化，其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发小淋巴结，大者短径约0.6CM。右侧内乳区显示饱满。纵隔内心包右旁、气管隆突下及左侧下肺静脉旁及下段食管旁见肿大淋巴结影，大者短径约1.0CM。双肺野散在分布大小不等结节灶，大者直径约1.3CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左肺胸膜增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。肝实质内见多个低密度灶，大者直径约0.3CM，边缘尚清晰，增强扫描边缘强化显著。胆囊充盈可，壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。脑实质内未见异常密度影，脑沟、脑池未见增宽或狭窄，脑室大小、形态，位置正常，中线结构居中。增强：脑实质未见异常强化，脑沟、脑池、脑室内未见异常。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后改变，双肺转移，较前(2014-8-14)变化不著；肝转移较前进展；多发骨转移较前变化不著2.右侧腋窝囊性密度灶较前吸收。右乳术后缺如，部分胸肌尚存，术区未见异常强化灶。右侧腋窝结构紊乱，局部示一囊性密度灶，直径约2.4CM，可见环形强化。左乳及左侧腋窝未见异常。双肺野示多发结节灶，边缘较清，大者直径约0.3CM。右肺上叶及左肺下叶可见条索状密度增高影。双肺门及纵隔未见增大淋巴结。肝实质内示数个低密度灶，边缘较模糊，可见轻度强化，大者直径约2.5CM。胆囊充盈可，壁不厚。胰、脾、双肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。膀胱充盈可，壁不厚。子宫及双侧附件未见异常。盆腔内未见肿大淋巴结。部分胸腰椎及附件、部分肋骨、骶椎、右侧髂骨、双侧坐骨可见成骨性骨质破坏。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后改变，较前(2016-3-25)变化不著；肝转移；考虑骨转移2.右肺局限性纤维灶3.右肺小结节灶部分变化不著，部分增大，考虑转移4.考虑肝囊肿5.胆囊炎6.胰头部密度略减低，建议观察7.右肾囊肿。右乳术后，术区结构紊乱，周围间隙模糊，皮下可见少许片絮状密度增高影，胸壁未见明显增厚。右侧腋窝结构紊乱，未见异常强化。左乳形态、密度未见异常，右侧腋窝见小淋巴结，短径不足0.5CM。左腋窝、双侧颈后三角区及左侧锁骨上示短径不足1.0CM淋巴结。双侧内乳区、肺门及纵隔未见增大淋巴结。右肺野内见数个小结节灶，大者长径约0.6CM(肺窗)。另右肺近前胸壁下示条片影。甲状腺右叶密度减低。肝内示多发低密度灶，边缘模糊。另肝内示类囊性密度灶。胆囊壁增厚。胰头部密度略减低。右肾示囊性密度灶。腹腔、腹膜后未见肿大淋巴结。部分椎骨密度不均，以T10为著。	</t>
-  </si>
-  <si>
-    <t>肝,骨,.右肺</t>
-  </si>
-  <si>
-    <t>右肺上叶尖段可见软组织肿块影，最大截面约0.8CM×1.6CM(肺窗)，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；余双肺野较清晰，未见明确异常密度灶。纵隔、双肺门未见明确肿大淋巴结。肝脏形态、大小可，实质密度均质。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾形态大小密度未见明确异常。双侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。骨窗示双侧锁骨、左侧肱骨、双侧肩胛骨、胸骨、双侧多发肋骨、多发胸腰骶椎椎体可见多发骨质破坏。	1.结合临床，右肺上叶癌侵及脏层胸膜较前(2016-3-22)变化不著；骨转移较前变化不著2.双侧肾上腺饱满，变化不著。</t>
-  </si>
-  <si>
-    <t>0.8CM×1.6CM</t>
-  </si>
-  <si>
-    <t>双侧锁骨,左侧肱骨,双侧肩胛骨,胸骨,双侧多发肋骨,多发胸腰骶椎椎体,骨</t>
-  </si>
-  <si>
-    <t>右肺中叶支气管开口处见一不规则低密度影，边缘模糊，大小不易测量，增强后可见轻度强化，远端示片状肺不张影。双肺见多发结节灶，部分边界欠清。纵隔内未见明显肿大淋巴结。肝实质内见多发囊性密度灶，大者直径不足1.0CM。右肾见直径约0.5CM低密度灶，未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔内肝胃韧带区及肝十二指肠韧带区见短径不足0.5CM小淋巴结。腹膜后未见肿大淋巴结。部分椎骨示成骨性破坏。右侧第3肋局限性骨质密度增高。	1.结合临床，右肺癌并阻塞性肺不张治疗后，较前(2016-1-6)局部范围略缩小；双肺多发结节灶，考虑转移，部分增大，部分变化不著；骨转移，部分变化不著，部分密度略增高2.肝囊肿3.右肾低密度灶，变化不著4.部分肋骨密度增高，变化不著。</t>
-  </si>
-  <si>
-    <t>右肺中叶支气管</t>
-  </si>
-  <si>
-    <t>双肺,双肺,骨</t>
-  </si>
-  <si>
-    <t>右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。余双肺可见小类结节灶，边缘模糊，大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径约1.1CM，部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。肝内见一斑点状钙化灶。胆囊充盈可，壁未见增厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。肝胃韧带区示结节灶，大者短径约0.6CM。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。双侧上颌窦及筛窦内示密度增高影。T12右侧椎弓根示斑片状密度增高影。	1.结合临床，右肺癌治疗后，较前片2015-7-1变化不著；双肺类结节灶治疗后，变化不著；右肺门、纵隔淋巴结转移治疗后，大部分变化不著，部分略缩小。2.右肺下叶炎症、纤维灶，变化不著。3.右侧少量胸腔积液，变化不著；右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根密度增高影，变化不著。6.颅脑CT扫描颅内结构未见明显异常。7.鼻旁窦炎。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.右肺下叶肺癌累及胸膜治疗后，较前(2015-04-20)基本变化不著；右肺门、纵隔淋巴结转移，部分较前略缩小，部分变化不著2.右肺小类结节灶，较前变化不著3.甲状腺体积增大并低密度灶，考虑为结节性甲状腺肿，变化不著4.双肺炎症5.双肺气肿6.肝左叶强化灶，考虑血管瘤，建议结合腹部检查。右肺下叶背段见不规则软组织影，大小约5.2CM×4.0CM，边缘见分叶征，其内密度不均匀，可见空洞形成，与邻近胸膜关系明确，增强扫描呈中度不均匀强化。右肺上叶(5-20、23)见小类结节影，大者直径约0.4CM，边缘模糊。双肺胸膜下见斑片状及片絮状密度增高影，以双肺下叶为著。另于双肺野内见多发泡状过度透光区。纵隔内3A、4R、4L、7区及右肺门示多发结节灶，大者短径约0.8CM。胸廓骨质未见破坏。甲状腺右侧叶体积增大，向下凸入右上纵隔，其内密度不均，可见低密度区，周围散在点状致密灶，左侧叶内亦可见低密度灶。肝左叶见一动脉期强化结节灶，边界尚清，直径约1.5CM，延迟期未见明确显示。胆囊充盈可，壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常，腹腔及腹膜后未见明确肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t>5.2CM×4.0CM</t>
-  </si>
-  <si>
-    <t>右肺门区见不规则软组织密度肿块影，增强扫描可见不均匀强化，远端与不张实变的肺组织分界不清，大小不易测量；右侧胸腔见大量液体密度影，右肺全肺不张，右侧胸膜增厚并可见强化。纵隔、膈上前组及中组可见肿大淋巴结，大者短径约1.0CM。右侧锁骨上见小淋巴结，大者短径约0.5CM。左肺野清晰。右侧胸腔内可见引流管影.肝实质内平扫未见明显异常.增强扫描可见多发异常强化区，肝右叶可见团片状强化，肝尾状叶病灶可见结节样向心性充填样强化.另肝右叶近包膜下(5-17)见一类圆形低密度灶，直径约1.0CM，边缘略模糊.双侧肾上腺未见明显异常。腹腔腹膜后未见肿大淋巴结。脑实质内未见异常密度影，脑沟、脑池未见增宽或狭窄，脑室大小、形态，位置正常，中线结构居中。T9椎体内可见一类圆形骨质稀疏区。	1.结合临床，右肺癌，右肺全肺不张；纵隔、膈上淋巴结转移；右侧锁骨上淋巴结肿大2.右侧胸腔大量积液，右侧胸腔引流术后改变；右侧胸膜增厚，转移可能大，建议观察3.考虑肝血管瘤(多发)4.肝右叶低密度灶，请结合MR扫描，除外转移5.颅脑扫描未见明显异常6.T9椎体内骨质稀疏，不除外转移，建议进一步检查。</t>
-  </si>
-  <si>
-    <t>纵隔、膈上淋巴结,右侧胸膜,肝右叶,T9椎体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合病史，右肺上叶癌治疗后，病变较2015-07-23片略增大2.双侧肾上腺结节灶，考虑转移，左侧较前略增大3.双肺纤维灶4.心包少量积液5.左肾囊肿6.颅脑扫描未见异常。右肺上叶纵隔旁见一团片状软组织密度影，大小约1.8CM×2.2CM(肺窗)，边缘毛糙，与纵隔胸膜关系密切，增强后病变呈中等强化。另于双肺内见少许条索状密度增高影。双肺门及纵隔内未见确切增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见液性密度影。心包腔内示少量液性密度影。肝脏未见异常密度灶。双侧肾上腺增大，见软组织密度结节灶，大者位于左侧，约1.8CM×2.9CM，可见强化。胆胰脾及右肾未见异常。左肾示囊性密度灶，直径约0.8CM，边界清，无强化。脑实质均质，未见异常密度灶。脑室系统未见扩张。中线结构居中。	</t>
-  </si>
-  <si>
-    <t>1.8CM×2.2CM</t>
-  </si>
-  <si>
-    <t>双侧肾上腺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌并双肺转移，双锁上、纵隔、双肺门、腹膜后淋巴结转移2.肝内低密度灶，不除外肝转移，建议定期复查3.肝囊肿；肝左内叶低密度灶，考虑血管瘤4.胆囊结石5.L1椎体骨质异常，建议定期复查。右肺上叶尖段可见一不规则软组织密度影，截面约为2.8CM×2.1CM，病变边缘毛刺，呈分叶状，向内侵及纵隔并与纵隔肿大淋巴结分界欠清，增强后呈不均匀强化。双锁上、纵隔内血管前间隙、气管周围、腔静脉后气管间隙、主肺动脉窗区、隆突下、双肺门可见多发肿大淋巴结，大者短径约为1.6CM。双肺野可见多个大小不一的散在类结节灶，大者长径约为0.7CM。双侧胸腔内未见液性密度影。肝右后叶示一低密度灶(5-23)，边缘模糊，直径约0.5CM。余肝实质内示多个囊性密度影，长径不足0.5CM，肝左内叶实质内可见一长径约为1.2CM的低密度灶，边缘尚清，增强后强化明显，延迟扫描仍有强化。胆囊充盈可，壁略示增厚，内示点状高密度影。脾、胰腺、双侧肾上腺、双肾未见明显异常。腹膜后腹主动脉周围示多个肿大淋巴结影，大者短径约为1.1CM。骨窗示：L1椎体局部示低密度灶。	</t>
-  </si>
-  <si>
-    <t>2.8CM×2.1CM</t>
-  </si>
-  <si>
-    <t>双肺,双锁上、纵隔、双肺门、腹膜后淋巴结,肝</t>
-  </si>
-  <si>
-    <t>右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。右肺见小类结节灶，边缘模糊，直径不足0.5CM。左肺野清晰。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径不足1.0CM，部分增强后强化显著。右侧胸膜略增厚。肝内强化不均质，肝右叶见一斑点状钙化灶。胆胰脾肾上腺及双肾未见异常。肝胃韧带区见短径不足0.5CM小淋巴结。脑实质密度均匀。T12右侧椎弓根示斑片状密度增高影。	1.结合临床，右肺癌并右肺下叶炎症，较前片2016-6-21基本变化不著；右肺类结节，变化不著；右肺门、纵隔淋巴结转移治疗后，较前变化不著。2.右侧胸膜略增厚，变化不著3.肝内钙化灶。4.T12右侧椎弓根密度增高影，变化不著。5.颅脑扫描未见明显异常。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左肺癌并阻塞性肺不张，较前变化不著2.纵隔淋巴结肿大，考虑转移，较前略缩小3.双肺炎症，较前进展；右肺下叶膨胀不全；右侧胸腔积液4.肝转移，较前略好转5.脾内多发低密度灶，考虑脾梗死6.胆囊炎；胆囊结石6.双肾囊肿7.腹腔及腹膜后多发淋巴结肿大，考虑转移8.腹腔积液，较前增多9.网膜及肠系膜增厚。左肺上叶舌段支气管示截断，其开口区见不规则软组织密度肿块影，边缘模糊，与膨胀不全肺组织分界不清，截面积约2.6CM×2.2CM；增强扫描呈不均匀强化。双肺野透光度减低，双肺野内见条索状密度增高影。纵隔内见肿大淋巴结，大者短径约0.8CM。右侧胸腔内见液性密度影，右肺下叶见弧形膨胀不全肺组织影。肝实质内见多发低密度结节灶及肿块影，部分相互融合，呈斑片状影，增强扫描部分病变呈环形强化，部分病变强化不显著。门脉右前支及右后支局部显示不清。胆囊壁增厚，腔内可见片状高密度影。脾实质内见多发斑片状低密度影，未见强化。双肾见低密度灶。腹腔见液性密度影。腹腔及腹膜后见多发肿大淋巴结，大者短径约1.0CM。网膜及肠系膜示增厚。	</t>
-  </si>
-  <si>
-    <t>。左肺上叶舌段</t>
-  </si>
-  <si>
-    <t>2.6CM×2.2CM</t>
-  </si>
-  <si>
-    <t>纵隔淋巴结,肝,腹腔及腹膜后多发淋巴结</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后，肝转移，较前2016-07-20基本变化不著；右肺结节灶，考虑转移，较前缩小2.左肺纤维灶3.胆囊炎。右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺可见少许条索状密度增高影。右肺上叶可见一结节灶，直径约0.6CM，边界清。纵隔内未见肿大淋巴结。肝脏实质内可见多发低密度肿块，大者直径约3.5CM，边缘模糊，轻度强化。胆囊充盈可，壁示增厚。胰、脾及扫描野内双肾未见异常。腹腔腹膜后未见肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t>肝,右肺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.右乳癌术后改变；多发骨转移，较前2016-5-24部分密度增高，大部分变化不著2.左肺钙化灶3.右肾囊肿4.腹腔内淋巴结肿大，较前略饱满。右乳术后缺如，术区皮肤略增厚，可见强化。右侧腋窝斑片状密度增高影，内见少许液性密度影，考虑为淋巴结清扫术后改变。左乳及左侧腋窝未见异常。左肺下叶见散小结节灶，直径约0.3CM。双肺门及纵隔内未见肿大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶，边界清晰，未见强化。腹腔内肝胃韧带区见稍大淋巴结，短径约0.8CM。腹膜后未见增大淋巴结。骨窗示：扫描野内多发胸腰椎体、胸骨、左侧锁骨、右侧肩胛骨、部分肋骨呈成骨性及溶骨性骨质破坏，局部呈膨胀性改变。	</t>
-  </si>
-  <si>
-    <t>右乳癌术后，术区结构紊乱，局部增强前后未见明显占位性病灶。肝左右叶可见多发大小不等病灶，T1WI呈略低信号，T2WI及压脂像呈略高信号，DWI呈高信号，增强扫描病灶呈不均匀强化。肝实质内及双肾实质内可见散在囊性结节，边界清楚，无强化，大者约1.0CM位于左肾。胆囊不大。脾、胰腺增强前后未见异常信号区。腹膜后未见明显肿大淋巴结。所扫部分椎体可见斑片状骨质破坏区，呈长T1短T2信号，压脂像及DWI为高信号，不均匀强化。双侧大、小脑半球及脑干大小、形态及灰白质位置正常，脑实质增强后扫描未见明显异常信号改变。脑室、脑池、脑沟未见明显异常。中线结构无移位。左上颌窦可见一囊性结节，边界清楚。余未见异常。	1.结合病史，右乳癌术后，肝(多发)及椎体转移。2.肝及双肾囊肿。3.颅脑MR扫描未见异常。4.左上颌窦囊肿。</t>
-  </si>
-  <si>
-    <t>肝左右叶,椎体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，肝癌伴肝内转移治疗后，较前片2014-8-12变化不著2.双肺尖多发类结节灶，较前变化不著；右肺下叶结节灶，部分较前略增大，不除外转移；右侧叶间胸膜结节灶，较前变化不著3.肝囊肿4.双肺上叶气肿5.双肺上叶纤维灶6.左侧肾上腺饱满，变化不著。肝脏体积增大，形态欠规则，实质内见多发混杂密度结节及肿块影，边界欠清，部分可见假包膜形成，大者截面积约12.8CM×10.0CM，部分其内示高密度碘油影沉积；增强扫描呈中度不均匀强化，大者其内可见低密度坏死区，延迟后病灶部分可见廓清。另肝内可见散在囊性密度灶，未见强化。门脉主干及左支显示尚可，门脉右前支示受压显著变窄，右后支显示欠清。胆囊充盈可，壁不厚。胰腺、脾、双肾及右侧肾上腺未见明确异常。左侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。双肺尖见多发类结节灶，直径不足0.5CM。另右肺下叶示类结节灶(5-46)，大者短径约0.2CM。双肺上叶见多发泡状过度透亮区及条索状密度增高影。双肺门及纵隔未见明确肿大淋巴结。右侧叶间胸膜增厚局部示类结节灶。	</t>
-  </si>
-  <si>
-    <t>12.8CM×10.0CM</t>
-  </si>
-  <si>
-    <t>肝内,右肺下叶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左肺癌并纵隔淋巴结转移，较前(2016-11-23)进展2.左侧胸膜增厚3.甲状腺左侧叶低密度灶，建议进一步检查4.上腹部CT扫描未见明显异常。左肺上叶纵隔旁示不规则软组织密度影，截面积约4.7CM×3.5CM，邻近支气管部分狭窄，远端肺内示斑片影及条片影；病变与纵隔内肿大淋巴结分界不清，并与心包分界不清，左侧胸膜及叶间胸膜略增厚。右肺野较清晰。纵隔内左肺动脉旁见肿大淋巴结，短径约1.8CM。扫描野内甲状腺左侧叶见低密度灶，边缘模糊。肝胆胰脾双肾上腺扫描野内双肾形态、密度未见明显异常。腹腔及腹膜后未见明显增大淋巴结。	</t>
-  </si>
-  <si>
-    <t>4.7CM×3.5CM</t>
-  </si>
-  <si>
-    <t>右下肺门区可见软组织密度肿块影，边缘模糊，与周围膨胀不全肺组织分界不清，右肺下叶内侧及后基底段支气管示阻塞，病变大小不易测量，增强扫描呈中度不均匀强化。病变远端见片絮状及条索状密度增高影。右肺野内(图4-33)及右肺胸膜下见数个类结节灶，边界尚清，大者直径约0.3CM。左肺野较清晰，未见明确异常密度灶。右侧胸膜示条状增厚并强化。右侧胸腔内示液性密度影。心包腔内见少量液性密度影。右肺门、纵隔内4R、4L、5区、7区见多发肿大淋巴结，大者短径约0.9CM。另于左锁上及右侧心膈角区见小淋巴结，短径约0.5CM。脑实质内见多发结节灶，边界欠清，增强扫描呈边缘环形强化，大者直径约4.5CM，周围见片状低密度水肿区。双侧上颌窦内示液性密度影。骨窗示：右侧胸锁关节示成骨性骨质改变，约右侧第5后肋示骨质密度不均匀。	1.结合临床，右肺癌并右肺膨胀不全，肿瘤大小不易与前片比较；右肺门、纵隔淋巴结转移，较前2014-7-4略示好转；脑转移治疗后，较前好转2.右侧胸膜增厚，考虑转移3.右侧胸锁关节骨转移4.右侧第5后肋骨质密度不均，建议观察5.右肺类结节灶，建议观察6.右侧胸腔积液，较前增多7.心包腔少量积液8.双侧上颌窦炎症。</t>
-  </si>
-  <si>
-    <t>右侧胸膜,脑,纵隔淋巴结,.右侧胸锁关节,骨</t>
-  </si>
-  <si>
-    <t>右肺下叶支气管开口区可见不规则软组织密度肿块，下叶支气管截断，远端可见不张肺组织实变影，病变与之分界不清，大小不易测量；增强后病变呈较显著不均质强化，不张肺组织内可见粘液栓影。病变与右下肺静脉关系密切，分界欠清。余双侧肺野内可见散在类结节灶，密度较淡，大者直径约0.3CM。双侧肺野内可见絮状及条索状密度增高影。双肺门、纵隔内2R、5区、6区、7区、8R、9L及右锁上可见多发肿大淋巴结，大者短径约1.1CM。右侧胸腔内可见少量弧形液性密度影；右侧胸膜显示增厚，局部呈类结节状。肝脏形态、大小可，肝左叶可见一类圆形低密度灶，直径约0.3CM，边界较清。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶，直径约0.5CM，边界清晰，未见强化。双侧肾上腺饱满，左侧肾上腺可见软组织密度结节灶，截面大小约1.9CM×1.4CM，可见不均质强化。腹腔及腹膜后未见增大淋巴结。骨窗示：左侧第八肋骨呈溶骨性骨质破坏。	1.右肺下叶占位，考虑右肺癌并右肺下叶阻塞性肺不张2.双肺门及纵隔、右锁上淋巴结肿大3.双肺多发类结节灶，建议密切观察以除外转移4.右侧胸膜增厚；右侧胸腔少量积液5.双侧炎症6.左侧第八肋骨骨质破坏，考虑转移7.左侧肾上腺结节灶，考虑转移8.肝左叶低密度灶，建议观察9.右肾囊肿。</t>
-  </si>
-  <si>
-    <t>右肺下叶支气管</t>
-  </si>
-  <si>
-    <t>双肺,.左侧第八肋骨,左侧肾上腺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，直肠癌术后，双肺转移瘤，较前2015-12-15部分增大，部分变化不著，部分考虑新发病灶2.双肾低密度灶，变化不著3.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著5.双肾囊肿。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.4CM(纵隔窗)，内示小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。肝脏实质密度均质。胆囊充盈可，壁不厚。胰、脾及双侧肾上腺未见异常。双肾见斑片状低密度灶，边界欠清。双肾内可见散在小囊性密度灶，边界清晰，未见强化。腹腔及腹膜后未见明显肿大淋巴结。直肠保肛术后，术区可见金属吻合钉影，周围肠壁未见明显增厚及异常强化。膀胱充盈可，壁不厚。前列腺及精囊腺未见异常。盆腔内未见积液及肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左侧乳腺癌术后，左侧内乳淋巴结转移2.纵隔、右侧腋窝淋巴结肿大，考虑转移3.右侧心膈角淋巴结肿大，请结合临床或观察4.脂肪肝；肝囊肿5.左肺上叶胸膜下慢性炎症及纤维变6.颅脑扫描未见异常。左侧乳腺术后，局部胸壁未见显著增厚。右侧乳腺形态、大小、密度未见异常。左侧腋窝结构紊乱，未见增大淋巴结。左侧内乳区见短径约1.3CM淋巴结(图3-25)。右侧腋窝见多发增大淋巴结，大者短径约1.0CM。纵隔内血管前间隙3A、气管前间隙4R、弓旁6区见多发增大淋巴结，大者短径约1.2CM。右侧心膈角见短径约0.5CM淋巴结。左肺上叶胸膜下见少许条索状影。双侧胸腔内未见液性密度影。扫描野内肝脏密度减低，右叶见直径约0.8CM囊性密度灶，边缘清晰。脑实质内未见异常密度影，脑沟、脑池未见增宽，脑室大小、形态，位置正常，中线结构居中。各颅骨骨质形态未见异常改变。	</t>
-  </si>
-  <si>
-    <t>左侧内乳淋巴结,纵隔、右侧腋窝淋巴结</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右侧中心型肺癌并阻塞性肺不张治疗后，不张较前(2014-09-24)减少，考虑好转；右肺门及纵隔淋巴结转移，部分变化不著，部分略好转；右胸膜转移，较前好转；骨转移，变化不著；脑转移，较前大小变化不著，部分密度减低，考虑略好转2.右侧胸腔积液，较前减少；心包积液，变化不著3.右肺结节，较前好转4.右侧乳腺术后改变5.肝内钙化灶6.左上颌窦炎症。右肺下叶支气管局部狭窄截断，周围示软组织密度肿块影，其与右肺门肿大淋巴结、不张肺组织分界不清，整体大小约3.8CM×1.8CM，增强后呈不均匀明显强化；邻近右肺野示少许斑片及条索影，牵拉胸膜；余右肺野略示小结节影，不足0.5CM。左肺野较清晰。右侧气管食管沟、腔静脉后、主肺动脉窗区、主动脉弓旁、隆突下、右侧心膈角区及右肺门示增大淋巴结，大者短径约0.5CM。右侧胸膜增厚，略呈小结节状；右侧胸腔内示弧形液体密度影。心包内示少量液体密度影。右侧乳腺术后缺如，术区未见明显增厚及异常强化。左乳未见异常。双侧腋窝、内乳区及锁骨上区未见明显肿大淋巴结。所扫肝右叶示颗粒状钙化密度影。左侧大脑内示多发结节、肿块影，大者截面约4.0CM×3.0CM，密度不均匀，周围示大片无强化的低密度水肿带，邻近侧脑室局部略示受压变形，增强后病灶呈环形明显强化。中线结构略尚居中。左侧上颌窦内示液体密度影。骨窗：胸骨柄右侧、胸骨下段局部骨质密度不均匀增高。	</t>
-  </si>
-  <si>
-    <t>右肺门及纵隔淋巴结,右胸膜,骨,脑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌治疗后，较前片2014-10-14变化不著；右肺门、纵隔淋巴结转移，较前变化不著2.右肺下叶炎症，较前略显著；右肺下叶小叶间隔增厚，较前基本变化不著3.双肺多发类结节灶，建议密切观察以除外转移4.右侧少量胸腔积液，较前略减少5.肝内钙化灶6.颅脑扫描未见明显异常。右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。另右肺下叶小叶间隔增厚。余双肺野可见多个类结节灶，部分位于胸膜下，边缘模糊，大者直径约0.5CM。右肺门及纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径约1.1CM，部分增强后强化显著。右侧胸腔内示少量液体密度影。扫描野内肝内见一斑点状钙化灶。脑实质密度均匀。脑室、池无扩张。脑沟、回无增宽。中线结构居中。	</t>
-  </si>
-  <si>
-    <t>右肺门、纵隔淋巴结,双肺</t>
-  </si>
-  <si>
-    <t>左肺下叶可见一不规则肿块，截面约7.2CM×7.0CM，边缘分叶，与胸膜关系密切，周围示斑片及絮状密度增高影，增强扫描病变呈较显著不均匀强化。余双肺多发泡状过度透光灶。左肺门及纵隔多发肿大淋巴结，大者短径约3.6CM。左锁上淋巴结略大，短径约0.6CM。肝右叶略示一低密度灶，直径约1.2CM，边缘模糊，增强扫描略强化，延迟扫描呈等密度。胆囊充盈可，壁略厚。胰脾肾上腺及双肾未见异常。腹腔腹膜后未见明显肿大淋巴结。	1.左肺下叶癌，左肺门、纵隔淋巴结转移2.左肺炎症；双肺气肿3.左锁上淋巴结略大4.肝内低密度灶，建议进一步检查。</t>
-  </si>
-  <si>
-    <t>右肺下叶基底段见软组织肿块影，边缘模糊，有分叶，肿块最大截面约1.8CM×3.4CM，增强后可见显著强化；邻近胸膜可见增厚。右肺内、右侧肋胸膜、叶间胸膜及斜裂胸膜示多发结节灶，大者直径约0.3CM，增强后可见强化。左侧肺野清晰，未见异常。左锁上、纵隔内腔静脉后方、气管隆突下示多发肿大淋巴结，短径约0.8CM。肝实质内见多发囊性密度灶，大者直径约3.0CM。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及扫描范围内左肾未见异常。右肾实质内见囊性密度灶，短径约2.0CM。肝总动脉旁及腹主动脉周围示增大淋巴结，大者短径约0.5CM。	1.结合临床，右肺下叶癌并右侧胸膜转移较前(2014-7-4)变化不著2.右肺结节灶，考虑转移，较前变化不著3.左锁上、纵隔、腹腔淋巴结肿大，较前变化不著；腹膜后小淋巴结4.肝囊肿5.右肾囊肿。</t>
-  </si>
-  <si>
-    <t>1.8CM×3.4CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合肺癌病史，左额叶、左顶叶转移。2.脑多发小缺血灶。左额叶近颅顶处可见一0.9CM×1.1CM×1.4CM的类卵圆形结节，有分叶，周围伴有斑片状长T2信号的水肿带，结节表现为T1加权像略低信号，T2加权像略高信号，压水像及DWI为高信号，不均匀强化。左顶叶可见一点状强化灶。双额叶可见散在小点状等T1略长T2信号影，压水像为高信号，无强化。脑室系统无扩大。中线结构居中。余未见异常。	</t>
-  </si>
-  <si>
-    <t>左额叶,左顶叶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.左肺中心型肺癌累及肺门、纵隔及心包、阻塞性肺不张，较前(2016-12-12)变化不著；肺炎治疗后，较前进展；双侧胸膜多发结节灶，考虑转移，部分略缩小，部分变化不著；纵隔淋巴结转移，较前略缩小；右肾上腺转移，变化不著2.肝囊肿；双肾囊肿；左肾低密度灶，胰腺低密度灶，变化不著，建议观察3.心包、左胸腔少量积液，略减少4.部分椎骨及肋骨密度略增高，较前变化不著。左肺门周围可见不规则软组织密度肿块影，约3.0CM×4.3CM，增强扫描呈明显不均匀强化，与其远端不张的肺组织、肺门淋巴结、纵隔内软组织及心包分界不清。双肺内见多发斑片状密度增高影。双侧胸膜及叶间胸膜上可见多发类结节灶，大者长径约0.6CM。纵隔内2R、4R、4L、5、6、7、8区示多发融合的淋巴结影，大者短径约1.4CM。心包内及左胸腔内可见液性密度影。肝脏大小形态未见异常，肝实质内可见数个囊性低密度灶，边界清，增强扫描无强化。左肾示斑片状低密度灶。另双肾内示小囊性密度灶。胰尾部示低密度影。胆囊、脾、左肾上腺未见异常，右肾上腺示一类结节灶，长径约3.6CM。腹腔内示短径不足1.0CM淋巴结。腹膜后未见肿大淋巴结影。部分椎骨、肋骨密度略增高。	</t>
-  </si>
-  <si>
-    <t>3.0CM×4.3CM</t>
-  </si>
-  <si>
-    <t>双侧胸膜,纵隔淋巴结,右肾上腺</t>
-  </si>
-  <si>
-    <t>左乳术后缺如，术区结构紊乱，周围脂肪间隙模糊，部分胸肌尚存，术区胸壁及皮肤未见明确增厚及异常强化。左侧腋窝结构紊乱。右乳未见明确异常。左肺门示短径约0.6CM淋巴结。右侧腋窝、双侧内乳区、右肺门及纵隔未见明确肿大淋巴结。左肺示少许斑片影。右肺未见明确异常密度灶。肝脏密度减低，内见囊性密度灶，边界较清，直径约2.0CM。另肝内示斑片状低密度灶，强化不著，边界欠清。胆囊、胰腺、脾、双侧肾上腺及左肾未见明确异常。右肾见短径不足0.5CM的小低密度灶。腹腔内肝胃韧带区、腹膜后腹主动脉周围见小淋巴结，大者短径约0.6CM。网膜及肠系膜、盆腹膜示增厚，局部呈斑片状及结节状改变，部分与邻近肠管分界不清，增强呈不均匀强化。腹腔内见液性密度影。卵巢术后，术区结构紊乱，周围间隙模糊，可见片状低密度影，与周围结构分界不清。宫颈体积增大，密度欠均匀。膀胱充盈可，壁略增厚。盆腔内未见明确肿大淋巴结。多发胸腰骶椎椎体及附件、双侧部分肋骨、骶骨、双侧髋骨示骨质密度增高，局部可见结节状高密度影。	1.结合临床，左乳癌术后；卵巢转移术后，术区片状低密度影，较前2016-6-13变化不著2.网膜、肠系膜及盆腹膜转移治疗后，腹水，较前进展3.脂肪肝；肝囊肿；肝内低密度灶，变化不著4.右肾囊肿5.宫颈体积增大，变化不著6.胸腰骶椎、肋骨、骶骨、髋骨骨质密度增高，考虑转移，较前变化不著。</t>
-  </si>
-  <si>
-    <t>卵巢,网膜,肠系膜,盆腹膜,胸腰骶椎,肋骨,骶骨,髋骨</t>
-  </si>
-  <si>
-    <t>左乳术后缺如，术区结构紊乱，周围脂肪间隙模糊，部分胸肌尚存，术区胸壁及皮肤未见明确增厚及异常强化。左侧腋窝结构紊乱。右乳未见明确异常。左侧锁骨上间隙较模糊。左肺门示短径约0.6CM淋巴结。右侧腋窝、双侧内乳区、右肺门及纵隔未见明确肿大淋巴结。左肺示少许斑片影。右肺未见明确异常密度灶。肝脏密度减低，内见囊性密度灶，边界较清，直径约2.0CM。另肝内示斑片状低密度灶，强化不著，边界欠清。胆囊、胰腺、脾、双侧肾上腺及左肾未见明确异常。右肾见短径不足0.5CM的小低密度灶。腹腔内肝胃韧带区、腹膜后腹主动脉周围见小淋巴结，大者短径约0.6CM。网膜及肠系膜、盆腹膜示增厚，局部呈斑片状及结节状改变，部分与邻近肠管分界不清，增强呈不均匀强化。卵巢术后，术区结构紊乱，周围间隙模糊，可见片状低密度影，与周围结构分界不清。宫颈体积增大，密度欠均匀。膀胱充盈可，壁略增厚。盆腔内未见明确肿大淋巴结。多发胸腰骶椎椎体及附件、双侧部分肋骨、双侧髋骨示骨质密度增高，局部可见结节状高密度影。双侧肱骨、股骨及左侧肩胛骨密度欠均。	1.结合临床，左乳癌术后；卵巢转移术后，术区片状低密度影，较前变化不著2.网膜、肠系膜及盆腹膜转移治疗后，较前变化不著3.脂肪肝；肝囊肿；肝内低密度灶，变化不著4.右肾囊肿5.宫颈体积增大，变化不著6.胸腰骶椎、肋骨、髋骨骨质密度增高，考虑转移，较前变化不著。</t>
-  </si>
-  <si>
-    <t>右侧乳腺术后，术区胸壁部分胸肌尚存，右侧胸壁近胸骨旁见一较大软组织密度肿块，大小约7.2CM×4.5CM，越过胸壁想胸腔内侵及，相邻胸骨骨质破坏，增强扫描可见明显强化。右侧内乳区及纵隔内见多发肿大淋巴结。左侧乳腺未见异常。左侧腋窝见直径约0.6CM的小淋巴结。双肺野见数个结节灶，大者直径约1.0CM。部分肋骨骨质密度不均。扫描野内右侧颈后三角区见多发肿大淋巴结。	1.结合临床，右侧乳腺癌术后，右侧胸壁复发并累及胸骨；右侧颈部、右侧内乳区、纵隔淋巴结转移2.左侧腋窝淋巴结稍大，建议观察3.双肺结节灶，不除外转移，请结合前片或密切随访4.部分肋骨骨质密度不均，请结合骨扫描除外转移。</t>
-  </si>
-  <si>
-    <t>右侧颈部、右侧内乳区、纵隔淋巴结,双肺,肋骨</t>
-  </si>
-  <si>
-    <t>左肺上叶示一不规则软组织密度灶，大小约2.1CM×2.9CM，边缘分叶，可见强化。左侧胸膜及叶间胸膜示多发结节灶，可见强化。左侧胸腔示液体密度影。左肺门、纵隔内示数个肿大淋巴结，大者短径约1.0CM。前纵隔胸腺区示类囊性密度灶，直径约2.0CM，边界清，无强化。左侧第七后肋呈溶骨性骨质破坏，局部形成软组织密度肿块。	1.左肺上叶癌，左侧胸膜转移，左肺门、纵隔淋巴结转移，骨转移2.左侧胸腔积液3.前纵隔占位，不除外胸腺囊肿，建议观察。</t>
-  </si>
-  <si>
-    <t>2.1CM×2.9CM</t>
-  </si>
-  <si>
-    <t>左侧胸膜,左肺门、纵隔淋巴结,骨</t>
-  </si>
-  <si>
-    <t>双乳呈脂肪型。左乳外上象限可见结节样密度增高影，大小约1.5CM×1.7CM影，其密度中等，边缘分叶，模糊，未见恶性钙化征象。同侧乳头无凹陷。皮肤无增厚。右乳未见异常。左侧腋窝见肿大淋巴结影，直径约2.0CM。右腋下示稍大淋巴结影，内可见脂肪密度影。	1.\T结合临床，左乳CA并作出腋窝淋巴结转移(BI-RADS5)2.\T右乳未见异常。</t>
-  </si>
-  <si>
-    <t>1.5CM×1.7CM</t>
-  </si>
-  <si>
-    <t>腋窝淋巴结</t>
-  </si>
-  <si>
-    <t>脑干、双侧小脑及大脑实质内见多发大小不等结节灶，表现为T1WI等或略低、略高信号，T2WI为等或略高信号，压水序列为高信号，DWI为低或中心低、边缘略高信号，增强扫描呈不均匀强化或环形强化，大者直径约1.1CM。另双侧大脑脑白质区见多发斑点状长T1、略长T2、T2FLAIR高信号及DWI等信号，边缘模糊，增强扫描无强化。右颞叶、右额叶及右侧基底节区见点状、小结节状略长T1长T2信号影、压水序列及DWI高信号，增强扫描无强化。脑室系统及脑沟、裂、池未见异常，中线结构无移位。	1.结合肺癌病史，脑多发转移。2.脑多发小缺血灶。3.右颞叶、右额叶及右基底节区异常信号，考虑急性腔隙性脑梗塞。</t>
-  </si>
-  <si>
-    <t>脑干、双侧小脑及大脑实质内,脑</t>
-  </si>
-  <si>
-    <t>右乳上象限局部(图2-35)皮肤增厚，邻近腺体密实。右侧腋窝见增大淋巴结，短径约1.4CM。右肺内见多发大小不一的软组织密度结节，以右上肺为著，大者长径约1.1CM，部分病灶边缘模糊。双肺门及纵隔内未见确切增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见液性密度影。鼻咽、口咽、下咽及喉未见明显异常。甲状腺右侧叶示低密度灶，长径约1.2CM，边界较清晰。左锁上、左颈根部、左颈后三角区示多发淋巴结，大者短径约0.6CM，局部脂肪间隙密度增高。肝脏形态、大小可，密度均质，未见结节及肿块。胆囊不大，壁不厚。胰腺、脾、双肾上腺及扫描野内双肾未见明显异常。腹腔及腹膜后未见确切增大淋巴结。	1.结合病史，右乳癌治疗后改变，请结合前片2.右腋窝淋巴结肿大，考虑转移，请结合前片3.右肺多发结节，考虑转移，请结合前片4.左锁上、左颈根部、左颈后三角区多发淋巴结肿大，请结合前片及临床5.甲状腺右侧叶低密度灶6.上腹部扫描未见明显异常。</t>
-  </si>
-  <si>
-    <t>右腋窝淋巴结,.右肺</t>
-  </si>
-  <si>
-    <t>右肺上叶纵隔旁见一团片状软组织密度影，大小约1.2CM×1.0CM(肺窗)，边缘毛糙，与纵隔胸膜关系密切，增强后病变呈中等强化。另于双肺内见少许斑片状密度增高影。双肺门及纵隔内未见确切增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见液性密度影。心包腔内示少量液性密度影。扫描野双侧肾上腺增大，见软组织密度结节灶，大者约1.3CM×1.7CM，可见强化。脑实质均质，未见异常密度灶。脑室系统未见扩张。中线结构居中。	1.结合病史，右肺上叶癌治疗后，较2015-1-30好转2.双侧肾上腺结节灶，考虑转移，左侧者较前增大3.双肺纤维灶，较前变化不著4.心包少量积液5.颅脑扫描未见异常。</t>
-  </si>
-  <si>
-    <t>1.2CM×1.0CM</t>
-  </si>
-  <si>
-    <t>右肺上叶尖段可见软组织密度影，最大截面约0.9CM×1.0CM(纵隔窗)，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；余双肺野较清晰，未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。右乳腺体局部密度增高。肝脏形态、大小可，左叶局限性灌注不均。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。骨窗示：双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏，以成骨性为主，部分肋骨形态欠规则，略呈膨胀性改变。	1.结合临床，右肺上叶癌侵及脏层胸膜治疗后，较前(2016-12-12)基本变化不著；多发骨转移，变化不著2.右乳腺体局部密度增高，变化不著；肝左叶低密度影，变化不著。</t>
-  </si>
-  <si>
-    <t>双侧锁骨,肱骨,肩胛骨,胸骨,多发肋骨,椎骨,骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左肺癌并阻塞性肺不张及炎症2.左肺门、纵隔淋巴结转移，右肺门淋巴结肿大，不除外转移3.左侧第4肋陈旧性骨折。左肺下叶示软组织肿块影，部分支气管狭窄，远端见少许实变肺组织及斑片状密度增高影，增强扫描病变呈较明显强化，直径约2.8CM。余肺野清。纵隔内气管周围、腔静脉后气管前间隙、主肺动脉窗区、隆突下、双肺门示多发增大淋巴结，大者短径约3.5CM。左侧第4肋示陈旧性骨折线形成。	</t>
-  </si>
-  <si>
-    <t>2.8CM</t>
-  </si>
-  <si>
-    <t>左肺门、纵隔淋巴结,右肺门淋巴结</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后；部分椎体密度增高，考虑转移2.考虑肝囊肿、左肾囊肿3.左肺类结节，右肺少许纤维灶4.肝内强化灶，考虑血管瘤以上较前(2017-2-7)基本变化不著。右乳术后，术区结构紊乱，术区胸壁及皮肤略增厚，局部密度欠均。右侧腋窝结构紊乱。左侧腋窝、双侧内乳区、肺门及纵隔未见增大淋巴结。左肺见小类结节，直径不足0.5CM。右肺见少许索条影。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝脏大小形态可，实质内示低密度影，边界清晰，增强扫描未见强化，直径不足0.5CM。另肝左叶动脉期见一长径约0.7CM强化结节，延迟呈等密度。胆囊不大，壁局部略厚。左肾示小类囊性密度灶。胰腺、右肾、双侧肾上腺及脾未见异常。腹腔及腹膜后未见肿大淋巴结。椎体局部密度增高。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左乳癌术后；卵巢转移术后，术区片状低密度影，较前2015-8-24范围略缩小2.网膜、肠系膜及盆腹膜转移治疗后，较前局部减轻3.脂肪肝；肝囊肿；肝内低密度灶，变化不著4.右肾囊肿5.宫颈体积增大，变化不著6.胸腰骶椎、肋骨、髋骨骨质密度增高，考虑转移，较前大部分变化不著，部分密度增高7.腹腔少量积液，较前减少。左乳术后缺如，术区结构紊乱，周围脂肪间隙模糊，部分胸肌尚存，术区胸壁及皮肤未见明确增厚及异常强化。左侧腋窝结构紊乱。右乳未见明确异常。左侧锁骨上间隙较模糊。左肺门示短径约0.6CM淋巴结。右侧腋窝、双侧内乳区、右肺门及纵隔未见明确肿大淋巴结。左肺示少许斑片影。右肺未见明确异常密度灶。肝脏密度减低，内见囊性密度灶，边界较清，直径约2.0CM。另肝内示斑片状低密度灶，强化不著，边界欠清。胆囊、胰腺、脾、双侧肾上腺及左肾未见明确异常。右肾见短径不足0.5CM的小低密度灶。腹腔内肝胃韧带区、腹膜后腹主动脉周围见小淋巴结，大者短径约0.6CM。网膜及肠系膜、盆腹膜示增厚，局部呈斑片状及结节状改变，部分与邻近肠管分界不清，增强呈不均匀强化。腹腔内可见液性密度影。卵巢术后，术区结构紊乱，周围间隙模糊，可见片状低密度影，与周围结构分界不清。宫颈体积增大，密度欠均匀。膀胱充盈可，壁略增厚。盆腔内未见明确肿大淋巴结。多发胸腰骶椎椎体及附件、双侧部分肋骨、双侧髋骨示骨质密度增高，局部可见结节状高密度影。双侧肱骨、股骨及左侧肩胛骨密度欠均。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左肺癌并阻塞性肺不张；纵隔淋巴结转移；右肺门淋巴结稍大2.双肺炎症及纤维灶、气肿；双肺类结节灶，建议观察3.肝内钙化灶4.肝内低密度灶，多为囊肿，部分考虑为囊肿，建议观察；双肾囊肿。左肺下叶背段支气管截断，断端见软组织密度灶，远端见不张肺组织，内见扩张支气管及其内粘液栓，二者分界不清，增强后前者中等不均匀强化，侵及左下肺门，与左下肺动脉及其分支、降主动脉关系密切。右肺及纵隔见大者短径约0.8CM中等淋巴结。左侧锁骨上见短径不足0.5CM小淋巴结。双肺见少许斑片索条影及少许泡状过度透光区。左肺上叶(5-13、15)见大者长径约0.8CM类结节灶。右肺(5-17、27)见直径不足0.5CM小类结节灶。肝内见斑点状钙化灶及低密度结节灶，后者大者长径约2.0CM，大部分边缘清晰，部分欠清，均未见强化。胆、胰、脾、双侧肾上腺未见异常。双肾见囊性结节灶。腹腔及腹膜后未见肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">左肺癌术后，左侧胸膜及淋巴结转移，少量胸腔积液。会诊*********CT(2016-09-12)左肺下叶术后缺如，左肺门见高密度吻合器影，残余左肺见索条影，左侧胸膜见多发结节灶，较大者位于下舌段近纵隔处，大小约2.5CM×1.5CM，呈均匀强化；左侧膈淋巴结肿大。左侧胸膜腔内见少量液性密度影，呈包裹性改变。右肺上叶后段胸膜下小结节灶，大小约0.4CM×0.3CM。	</t>
-  </si>
-  <si>
-    <t>左侧胸膜,淋巴结</t>
-  </si>
-  <si>
-    <t>右肺下叶见不规则软组织肿块，截面约6.1CM×3.1CM，边缘毛糙，增强后呈中等到显著不均匀强化；其远端肺野见多发斑片状及索条状密度增高影，局部支气管示扩张，局部小叶间隔增厚。右肺门及纵隔内2R、4R、4L、6、7、8R区见多发增大或小淋巴结，大者短径约1.3CM，部分增强后强化显著。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝、胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。	1.结合临床，右肺癌；纵隔淋巴结转移；右肺门淋巴结肿大，考虑转移2.右肺下叶炎症3.右肺下叶小叶间隔增厚，建议观察4.上腹部扫描未见异常。</t>
-  </si>
-  <si>
-    <t>6.1CM×3.1CM</t>
-  </si>
-  <si>
-    <t>纵隔淋巴结,右肺门淋巴结</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌并双肺、肝、骨转移，双侧肾上腺转移，双肺门及纵隔、右侧锁骨上淋巴结转移，腹腔淋巴结稍大；双侧叶间胸膜增厚，转移可能性大2.双肾低密度灶，转移可能，建议观察；双肾囊肿3.肝低密度灶，囊肿可能，建议观察；肝内钙化灶4.左颈内静脉栓子形成5.胆囊结石。右肺上叶支气管壁示增厚，周围见不规则软组织肿块，增强后呈不均匀强化；右肺中叶支气管局部狭窄，远端见不张肺组织。双肺支气管血管束增粗，小叶间隔增厚，以右肺为著。双肺见多发结节灶，部分边缘毛糙，大者长径约1.8CM。双侧叶间胸膜增厚，局部呈类结节状。双侧肺门及纵隔、右侧锁骨上见大者短径约1.3CM肿大淋巴结。另右肺门及纵隔见钙化灶。左侧颈内静脉局部见低密度充盈缺损。肝内见多发强化灶，大者长径约1.2CM。另肝内见小低密度灶，强化不著。肝内见斑点状钙化灶。双侧肾上腺见软组织结节，大者长径约2.0CM，可见强化。双肾见低密度灶，边缘不清，似强化。双肾见囊性结节。胆囊内见结节状高密度影。腹腔及腹膜后见短径约0.6CM小或稍大淋巴结。双侧肩胛骨、胸骨、右侧锁骨、多发肋骨及椎骨示多发骨质破坏。	</t>
-  </si>
-  <si>
-    <t>双肺,肝,骨,双侧肾上腺,双肺门及纵隔、右侧锁骨上淋巴结,双侧叶间胸膜,双肾</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后，纵隔淋巴结转移较前2016-5-17好转，双肺转移较前好转，肝转移较前好转，骨转移较前范围略示增大2.双侧胸膜增厚。右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内2R、4R及7区见肿大淋巴结，大者直径约0.7CM。双肺野示多发结节灶，大者直径约0.5CM。双侧胸膜略示增厚。肝脏实质内可见多发低密度结节灶，大者直径约1.4CM，边缘模糊，轻度强化。胆囊充盈可，壁不厚。胰腺、脾及双肾、肾上腺未见异常。腹腔腹膜后未见肿大淋巴结。腹腔内未见积液征象。多个胸腰椎示溶骨性骨质破坏。	</t>
-  </si>
-  <si>
-    <t>纵隔淋巴结,双肺,肝,骨</t>
-  </si>
-  <si>
-    <t>小脑可见一约1.7CM×2.9CM的类卵圆形略长T1略长T2信号结节，边缘不整且压水像、DWI为高信号，增强后扫呈不均匀强化且周围伴有斑片状长T2信号的水肿带，四脑室受压狭窄变形；上述病灶左后可见一约0.4CM的强化灶。双侧大脑半球可见散在斑点状等T1略长T2信号影，压水像为高信号，DWI为等信号，增强后扫描无强化。脑室系统无扩大。中线结构居中。颈椎椎体边缘呈棘样突起且以前缘为著，但未见明显骨质破坏区。椎间盘C3/4、C4/5、C5/6向后突，相应硬膜囊受压狭窄变形，椎间隙略变窄。颈髓平扫未见异常信号区。	1.结合肺癌病史，小脑转移。2.脑多发小缺血灶。3.颈椎骨质增生，椎间盘C3/4、C4/5、C5/6突出。</t>
-  </si>
-  <si>
-    <t>小脑</t>
-  </si>
-  <si>
-    <t>直肠术后，术区示高密度吻合器影，壁未见明显增厚。盆腔及双侧腹股沟未见明显增大淋巴结。肝实质密度减低，内示小囊性密度灶。双肾内示低密度灶，边缘模糊，另双肾内示囊性密度灶。腹腔及腹膜后未见增大淋巴结。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.6CM(纵隔窗)，内示空洞影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。	1.结合临床，直肠癌术后；双肺转移，较前(2016-9-8)部分缩小，部分略饱满，余变化不著2.双肾低密度灶，部分变化不著，部分略缩小，建议观察；双肾囊肿3.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著5.脂肪肝；考虑肝囊肿。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后2.左肺门、纵隔淋巴结转移，较前(2015-9-9)略示进展3.双肺炎症，较前加重；双侧胸膜略增厚，较前进展，双侧胸腔积液4.双肺小结节灶，变化不著5.肝囊肿、钙化灶6.右肾囊肿7.右肾上腺结节灶，考虑腺瘤，变化不著8.甲状腺低密度灶，变化不著。右乳术后，前胸壁软组织略增厚，未见明显异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺门、纵隔内主肺动脉窗区可见肿大淋巴结，直径约1.8CM。右肺门淋巴结略增大，短径约0.8CM。左肺上叶支气管受压狭窄，远端肺野近纵隔旁可见带状密度增高影，另双肺内见斑片状密度增高影，右肺下叶为著。余双肺散在小结节灶，大者直径约0.4CM。双侧胸膜略增厚，双侧胸腔内可见较多液性密度影。甲状腺示斑片状低密度灶。肝内见囊性密度灶及斑片状致密影。胆囊壁增厚。右肾示小囊性密度灶。右肾上腺可见结节灶，直径约0.8CM，密度较低，强化不明显。骨窗示多发胸椎椎体、肋骨骨质略示稀疏。	</t>
-  </si>
-  <si>
-    <t>右肺上叶纵隔旁见一团片状软组织密度影，大小约1.3CM×1.0CM(肺窗)，边缘毛糙，与纵隔胸膜关系密切，增强后病变呈中等强化。另于双肺内见少许斑片状密度增高影。双肺门及纵隔内未见确切增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见液性密度影。心包腔内示少量液性密度影。肝脏形态、大小可，密度均质，未见确切结节及肿块。肝内外胆管未见扩张。胆囊充盈欠佳，壁略厚伴强化。胰腺、脾及扫描野内右肾未见明显异常。双侧肾上腺增大，见软组织密度结节灶，大者直径约1.3CM，可见强化。左肾实质内见囊性密度影，长径约0.8CM，界清，无强化。腹腔及腹膜后未见确切增大淋巴结。	1.结合病史，右肺上叶癌治疗后，较2015-1-4片变化不著2.双侧肾上腺结节灶，考虑转移，较前变化不著3.双肺纤维灶，较前变化不著4.心包少量积液5.胆囊炎6.左肾囊肿。</t>
-  </si>
-  <si>
-    <t>右侧小脑半球、右侧颞叶、顶叶及左额叶、顶叶、颞叶见多发结节样异常信号影，表现为T1WI低信号，T2WI及压水序列高信号，DWI序列呈等、高信号，增强扫描呈结节样或环形强化，大着直径约1.6CM位于左顶叶，部分病灶周围脑实质内见长T2水肿带。脑室、脑池未见扩张，中线结构居中。余未见异常。	结合右肺癌病史，符合脑多发转移瘤MR表现。</t>
-  </si>
-  <si>
-    <t>右侧小脑半球,右侧颞叶,顶叶,左额叶,顶叶,颞叶,脑</t>
-  </si>
-  <si>
-    <t>右肺中叶近肺门处示不规则软组织密度影，远侧肺组织示实变征象，周围多发多发条索状及斑片状密度增高影，与周围组织关系密切，增强扫描示中度强化。右肺中叶外侧段见一磨玻璃密度结节。余双肺野内散在囊泡状过度透光灶。右肺门及纵隔示多发肿大淋巴结，部分融合成团，大者短径约为1.2CM。肝脏示低密度影，边界清晰，增强扫描未见强化，余肝实质未见异常密度影。胆囊、胰腺、脾、双肾、未见异常，右侧肾上腺外支见一结节灶，直径约0.8CM，边缘光滑，密度均匀。腹腔腹膜后未见肿大淋巴结影。	1.右肺癌并阻塞性肺炎，肺不张，右肺门及纵隔淋巴结转移；较前片(2016，07，27)变化不明显。2.双肺气肿。3.右肺磨玻璃结节(考虑良性)。4.肝囊肿。5.右肾上腺小结节，考虑腺瘤可能性大。</t>
-  </si>
-  <si>
-    <t>右颞叶、右侧小脑半球、右侧桥小脑结合臂见数个结节样异常信号，表现为T1WI等低信号、T2WI略高信号，压水序列高信号，增强扫描可见强化，大者直径约8MM，病变周围脑实质未见明显水肿带。脑室系统无扩张。中线结构居中。腰骶椎多个椎体及附件见多发结节样异常信号，表现为T1WI低信号，T2WI低信号，压脂序列高信号，增强扫描可见强化。多个椎体边缘见棘样骨质信号突起。椎体相对缘见斑片状异常信号，表现为T1WI高信号，T2WI高信号，压脂序列等信号，增强扫描无强化。所扫脊髓及椎管内未见异常信号。	结合乳腺癌术后病史，考虑脑多发转移瘤；腰骶椎多发转移瘤腰椎退行性变。</t>
-  </si>
-  <si>
-    <t>右颞叶,右侧小脑半球,右侧桥小脑结合臂,脑,腰骶椎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌累及纵隔及上腔静脉治疗后，较前(2016-12-1)变化不著。2.脑多发转移。3.甲状腺钙化灶。4.纵隔内淋巴结肿大，变化不著。5.考虑右肺炎症，变化不著。6.上腹部未见明显异常。右肺上叶支气管周围可见小斑片状软组织密度影，与邻近纵隔内4R区肿大淋巴结及上腔静脉分界不清，增强扫描呈不均匀强化，纵隔内3A、2R区示数个结节灶，大者短径约0.7CM。所扫双侧甲状腺内可见数个钙化灶。肝脏、胆囊、胰腺、脾、双肾、肾上腺未见异常，腹腔腹膜后未见肿大淋巴结影。脑实质示多发强化结节灶，大者截面约2.5CM×2.1CM，周围可见低密度水肿带。右侧上颌窦内示囊性密度灶。	</t>
-  </si>
-  <si>
-    <t>肝脏体积增大，形态欠规则，实质内见多发混杂密度结节及肿块影，边界欠清，部分可见假包膜形成，大者截面积约13.1CM×10.0CM，部分其内示高密度碘油影沉积；增强扫描其内可见不均匀强化。肝左内叶近膈顶处病灶大小约12.5CM×7.3CM，邻近下腔静脉受压变窄。余肝内见数个动脉期较显著强化灶，门脉期和延迟期廓清迅速，部分呈融合状，边界不清。肝内另见小囊性密度灶，大者长径不足0.5CM，界清，无强化。门脉主干及左支显示尚可，门脉右支示受压显示欠清。胆囊充盈可，壁略厚。胰腺、脾、双肾及右侧肾上腺未见明确异常。左侧肾上腺略示饱满。腹腔及腹膜后未见确切增大淋巴结。双肺内示多发大小不一的结节灶，大者长径约1.3CM。双肺内胸膜下见多发泡状过度透亮区及条索状密度增高影，局部肺大泡形成。双肺门及纵隔未见确切增大淋巴结。纵隔内冠状动脉见条形钙化。右侧叶间胸膜增厚局部示类结节灶。双侧胸腔未见液性密度影。	1.结合病史，肝癌伴肝内转移治疗后，部分较2015-1-5片进展；双肺多发转移，较前进展2.双肺局限性肺气肿，肺大泡；双肺纤维灶3.右侧叶间胸膜结节灶，较前变化不著4.肝小囊肿5.左侧肾上腺饱满，较前变化不著。</t>
-  </si>
-  <si>
-    <t>13.1CM×10.0CM</t>
-  </si>
-  <si>
-    <t>肝,双肺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，考虑左肺癌；左肺门淋巴结转移，较前(2016-08-08)示增大2.右肺钙化灶3.肝内多发低密度灶，部分为囊肿，部分建议观察，变化不著4.右肾囊肿5.部分肋骨骨质异常，不除外转移，较前变化不著。左肺上叶见一不规则软组织密度肿块影，边缘分叶、毛糙，上叶支气管部分示截断，病变向内与左肺门肿大淋巴结分界不清，截面积约3.6CM×3.2CM；增强扫描呈不均匀强化。右肺野内见结节状致密影。左侧胸壁见高密度影，局部伪影较大，周围结构显示不清。左肺门见肿大淋巴结，短径约1.5CM。纵隔内见多发小淋巴结，大者短径约0.5CM。双侧胸膜示不均匀增厚并强化，双侧胸腔内见少量液性密度影。肝实质内见多发低密度灶，大部分边界较清，少许边缘模糊，大者直径约0.5CM。胆囊充盈可，壁增厚。右肾见囊性密度灶，边界清。腹腔及腹膜后未见明确肿大淋巴结。左侧第10、8肋骨示骨质膨胀，骨皮质欠连续，局部骨质密度增高或减低。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，卵巢癌并腹膜网膜转移，腹盆腔积液；盆腔小淋巴结3.右乳结节及类结节，乳癌可能，请结合临床4.双肺少许炎症及纤维灶。右乳内上象限见一长径约1.1CM结节灶，边缘不清，密度不均，增强后呈中等不均匀强化；另其内侧局部结构紊乱，呈一类结节状改变，长径约1.0CM，强化较显著，边缘毛糙。双肺见少许斑片索条影。双侧肺门及纵隔、内乳区及腋窝未见肿大淋巴结。双侧附件区见囊实性结节，大者截面3.3CM×2.1CM，增强后实性成分可见中等强化，边缘不清。宫腔见液性密度影，宫颈见小囊性结节，未见强化。盆腔见短径不足0.5CM小淋巴结。腹膜、网膜及肠系膜增厚，增强后可见强化；腹盆腔见液性密度影。膀胱充盈良好，壁未见增厚。	</t>
-  </si>
-  <si>
-    <t>卵巢,右乳</t>
-  </si>
-  <si>
-    <t>1.1CM,3.3CM×2.1CM</t>
-  </si>
-  <si>
-    <t>腹膜,网膜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，双侧乳腺癌术后改变；左肺上叶、右肺下叶结节灶伴FDG高代谢，考虑恶性病变，建议进一步检查；左锁上、纵隔淋巴结转移伴FDG高代谢。2.双肺肺大泡。3.扁桃体炎症。4.子宫肌瘤；子宫腔内FDG高代谢，考虑子宫内膜摄取。5.T6-T9椎体术后改变。空腹6HR以上，静脉注射显像剂，平静休息60MMIN后行CT和PET全身断层显像，PET图像经衰减校正、迭代法重建后行多层面、多幅显像，并与CT图像进行融合。影像清晰。PET-CT示左乳术后缺如，术区未见异常放射性摄取，右乳未见异常放射性摄取；左锁上肿大淋巴结，直径约为1.7CM，呈结节状放射性摄取增高，最高SUV3.5，左肺上叶支气管前尖段开口处示局限性放射性摄取增高，最高SUV3.3，远端示条状密度增高影；右肺下叶斜裂胸膜处示软组织结节，与斜裂胸膜关系密切，截面约为1.8CM×1.5CM，边缘毛刺，呈结节状放射性浓聚，最高SUV5.4，其外侧斜裂胸膜亦示一结节灶，长径约为1.0CM，未见异常放射性摄取；左肺上叶、右肺下叶各示一肺大泡影；纵隔气管前腔静脉后示放射性摄取增高淋巴结，直径约为1.0CM，最高SUV4.1；子宫表面示直径约为2.0CM的结节样凸起，子宫腔内示小片状放射性摄取；扁桃体示放射性摄取增高，最高SUV5.9。T6-T9椎体示金属固定器影。脑部正常显影。肝脏形态、大小及放射性分布正常，脾不大。胃显影正常。双肾及双输尿管正常显影。腹部内见数个形态不一、条管状、浓淡不一的正常肠影。余无特殊。	</t>
-  </si>
-  <si>
-    <t>双侧乳腺,左肺上叶,右肺下叶,1.8CM×1.5CM</t>
-  </si>
-  <si>
-    <t>左锁上、纵隔淋巴结</t>
-  </si>
-  <si>
-    <t>右乳术后缺如，术区皮肤略增厚，可见强化。右侧腋窝可见囊性密度灶，未见强化，考虑为淋巴结清扫术后改变。左乳及左侧腋窝未见异常。右侧内乳区略饱满。右肺上叶及左肺下叶可见散在类结节灶，边界较清，大者直径约0.3CM；余双肺野清晰，肺纹理走形自然，气管及各级支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶，边界清晰，未见强化。腹腔内肝胃韧带区见多发增大淋巴结，大者短径约0.8CM。腹膜后未见增大淋巴结。脑实质密度均质，未见明确异常密度灶。脑室、池未见扩张，中线结构居中。右侧上颌窦内可见少量液性密度影。骨窗示：扫描野内多发胸腰椎体、左侧锁骨、右侧肩胛骨、部分肋骨呈成骨性及溶骨性骨质破坏，局部呈膨胀性改变。	1.右乳癌术后改变；多发骨转移，较前2016-1-19变化不著2.双肺类结节灶，纤维灶可能，较前变化不著3.右肾囊肿4.腹腔内淋巴结肿大，变化不著5.右侧上颌窦炎症6.颅脑扫描未见明确异常。</t>
-  </si>
-  <si>
-    <t>胸腰椎体、左侧锁骨、右侧肩胛骨、部分肋骨,骨</t>
-  </si>
-  <si>
-    <t>左乳术后缺如，左侧胸壁及胸肌可见数个结节及类结节灶，大者直径约0.7CM，边缘模糊，可见强化。右乳未见异常。双腋窝、内乳及纵隔未见明显肿大淋巴结。右肺示数个结节及类结节灶，大者长径约1.1CM，可见强化，局部略呈空洞状。左肺示少许斑片及条索影。扫描野内甲状腺内示数个低密度灶，直径不足0.5CM，边界清。脑实质密度均匀。	1.结合临床，左乳癌术后，术区胸壁及胸肌结节灶，复发或转移可能大；右肺结节及类结节灶，转移待排，请结合前片2.甲状腺低密度灶，考虑良性病变，建议观察3.左肺纤维灶4.颅脑扫描未见明显异常。</t>
-  </si>
-  <si>
-    <t>右肺,胸壁及胸肌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左肺癌治疗后；左侧胸膜转移及叶裂转移2.左肺慢性炎症及纤维灶3.左侧心包及心膈角区结节影4.肝囊肿以上均较前(2016-08-29)片变化不著。左肺上叶纵隔旁示一不规则软组织密度结节灶，与纵隔内主肺动脉窗区肿大淋巴结分界不清。左肺野内见斑片索条状密度增高影，左侧叶裂及胸膜可见多发类结节状增厚。右侧肺野较清晰。纵隔内及双肺门未见确切肿大淋巴结。左侧心包及左侧心膈角区可见多发结节影，大者直径不足1.0CM。肝脏大小形态未见异常，肝实质内可见一小低密度灶，边界清。胆囊、胰腺、脾、双肾、肾上腺未见异常，腹腔腹膜后未见肿大淋巴结影。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后2.左腋窝小淋巴结；纵隔淋巴结略增大3.脂肪肝；肝囊肿；脾内低密度灶，考虑囊肿4.胆囊结石5.考虑左侧肱骨头转移。右乳术后缺如，术区未见异常增厚及强化。左乳未见异常。左腋窝示数个小淋巴结，大者短径约0.5CM。右锁骨上区脂肪间隙略示模糊；上纵隔气管右旁及腔静脉后气管前示略大淋巴结，短径约0.7CM。扫描野内肝脏密度减低。胆囊可见结节状致密影。肝及脾内均示低密度灶，大者直径约1.3CM，边界清，强化不著。双肺野清晰。左侧肱骨头可见骨质破坏。	</t>
-  </si>
-  <si>
-    <t>左侧肱骨头</t>
-  </si>
-  <si>
-    <t>右乳术后，术区未见结节及异常强化灶。右侧腋窝结构紊乱。双侧内乳区、双侧肺门及纵隔未见增大淋巴结。双肺见多发结节及类结节灶，大者长径约1.5CM，边缘较清晰，增强后可见强化。双肺见少许索条影。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝内见一囊性低密度结节灶，长径约2.1CM，边缘清晰，未见强化。胆、胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔未见增大淋巴结。腹膜后腹主动脉旁见短径不足0.5CM小淋巴结。扫描野内右肺中叶见一长径约1.4CM结节灶，边缘较清晰右侧锁骨头局限性骨质密度增高。	1.结合临床，右乳癌术后；双肺结节及类结节灶，右肺者考虑转移，左肺者转移可能性大，均较前(2014-8-29)变化不著2.双肺纤维灶或炎症3.肝内低密度灶，首先考虑囊肿，较前(2014-9-3)变化不著4.右侧锁骨头局限性骨质密度增高，变化不著。</t>
-  </si>
-  <si>
-    <t>右肺,左肺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，直肠癌术后，双肺转移瘤，较前2016-01-28部分缩小，部分变化不著2.双肾低密度灶，变化不著3.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著5.双肾囊肿。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.0CM(纵隔窗)，内示小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。肝脏实质密度均质。胆囊充盈可，壁不厚。胰、脾及双侧肾上腺未见异常。双肾见斑片状低密度灶，边界欠清。双肾内可见散在小囊性密度灶，边界清晰，未见强化。腹腔及腹膜后未见明显肿大淋巴结。直肠保肛术后，术区可见金属吻合钉影，周围肠壁未见明显增厚及异常强化。膀胱充盈可，壁不厚。前列腺及精囊腺未见异常。盆腔内未见积液及肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t>左肺叶间胸膜下见一结节灶，直径约1.0CM，边清。右肺上叶及中叶见少许斑片条索状密度增高影，部分内见钙化灶。右肺中叶胸膜下见结节灶，部分内见钙化灶，大者直径约0.4CM。双侧胸膜未见增厚，双侧胸腔未见积液征象。双肺门、纵隔未见肿大淋巴结。直肠术后，吻合口壁未见增厚及异常强化征象。膀胱充盈可，壁不厚。子宫及附件区未见异常。盆腔内未见肿大淋巴结。盆腔内未见积液征象。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及双肾形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。	1.结合临床，直肠癌术后2.左肺叶间胸膜下结节灶，较前(2015-6-1)略增大，转移不能除外，建议密切观察3.右肺结节灶及钙化，较前变化不著4.上腹部扫描未见异常。</t>
-  </si>
-  <si>
-    <t>左肺叶间胸膜</t>
-  </si>
-  <si>
-    <t>左肺上叶近纵隔旁见软组织肿块影，边缘有毛刺，直径约2.5CM，增强后可见强化。右肺下叶见少许条索影，余肺野清晰，未见异常。肝实质内见多发囊肿。胆囊胰脾双肾未见异常。腹腔及腹膜后未见明显肿大淋巴结。前列腺形态大小正常，边缘光整，与周围组织间隙清晰，实质内密度均匀。精囊腺形态大小密度正常。膀胱充盈好，壁不厚。盆腔内未见肿大淋巴结。左侧臀部肌群内见软组织肿块，邻近左侧髂骨骨质破坏，肿块最大截面约4.4CM×5.1CM。L4椎体骨质密度减低。	1.结合临床，考虑左肺癌并左侧臀部肌肉转移累伴左髂骨骨质破坏；L4椎体密度减低，建议观察2.肝囊肿。</t>
-  </si>
-  <si>
-    <t>2.5CM</t>
-  </si>
-  <si>
-    <t>左侧臀部肌肉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左肺癌治疗后；左侧胸膜转移及叶裂转移2.左肺慢性炎症及纤维灶3.左侧心包及心膈角区结节影4.肝囊肿以上均较前(2016-11-22)片变化不著。左肺上叶纵隔旁示一不规则软组织密度结节灶，与纵隔内主肺动脉窗区肿大淋巴结分界不清。左肺野内见斑片索条状密度增高影，左侧叶裂及胸膜可见多发类结节状增厚。右侧肺野较清晰。纵隔内及双肺门未见确切肿大淋巴结。左侧心包及左侧心膈角区可见多发结节影，大者直径不足1.0CM。肝脏大小形态未见异常，肝实质内可见一小低密度灶，边界清。胆囊充盈欠佳，壁增厚。胰腺、脾、双肾、肾上腺未见异常，腹腔腹膜后未见肿大淋巴结影。	</t>
-  </si>
-  <si>
-    <t>右肺下叶支气管局部狭窄截断，周围示软组织密度肿块影，最大截面约2.9CM×3.2CM，与远端少许实变不张肺组织和肺门区肿大淋巴结分界不清；增强后呈明显强化。左肺野较清晰。右侧胸膜(含叶间胸膜)增厚呈条状及类结节状，并可见强化。心包内示少量液体密度影。右侧乳腺术后缺如，术区未见明显增厚及异常强化。左乳未见异常。双侧腋窝、内乳区未见明显肿大淋巴结。左锁上见肿大淋巴结，短径约0.9CM。纵隔内4R、4L、5区、7区见多发小淋巴结，大者短径约0.5CM。所扫肝右叶示颗粒状钙化密度影。左侧大脑内示多发结节、肿块影，大者截面约2.9CM×3.4CM，其内呈囊性密度灶，增强扫描呈边缘环形强化；周围示片状无强化的低密度水肿带，邻近侧脑室局部略示受压。中线结构尚居中。左侧上颌窦内示液体密度影。骨窗：胸骨柄右侧、胸骨下段、多发胸椎椎体局部骨质密度不均匀增高。	1.结合临床，右侧中心型肺癌并阻塞性不张治疗后，较前(2015-3-31)明显好转；右肺门淋巴结肿大，较前好转；右侧胸膜(包括叶裂)增厚，较前好转，考虑转移；骨转移，变化不著；脑转移，较前略缩小2.心包积液较前减少3.右侧乳腺术后改变5.肝内钙化灶6.左上颌窦炎症。</t>
-  </si>
-  <si>
-    <t>2.9CM×3.2CM</t>
-  </si>
-  <si>
-    <t>左侧大脑,胸骨柄右侧,胸骨下段,胸椎椎体,右侧胸膜(包括叶裂),骨,脑</t>
-  </si>
-  <si>
-    <t>右乳术后缺如，部分胸肌存在，术区胸壁及皮肤局部略增厚；右侧腋窝术后，结构紊乱。左乳未见明确异常。右侧内乳区、左侧腋窝可见小淋巴结，大者短径不足0.5CM。右肺中叶见一结节灶，长径约1.4CM。右肺中叶可见类圆形囊状过度充气区及条片影。双肺门及纵隔内未见肿大淋巴结。右侧胸膜略增厚。扫描野内肝实质密度减低。脾内示颗粒状致密影。胆囊腔内密度略增高。右侧部分肋骨密度增高。	1.右乳癌术后改变，术区胸壁及皮肤局部略增厚，较前(2016-05-19)基本变化不著2.考虑右肺转移，略饱满；右肺中叶含气囊肿、纤维灶，变化不著3.脂肪肝；脾内钙化灶4.右侧部分肋骨密度增高，变化不著。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，考虑左乳癌治疗后较前2016-4-13好转；左侧腋窝软组织影，考虑转移，较前好转；骨转移较前变化不著；考虑双肺转移较前好转2.左侧锁骨上间隙模糊，较前好转。左乳偏外侧象限见多发结节灶，部分边缘模糊、毛糙，大者直径约0.9CM；增强扫描呈较显著不均匀强化。左侧腋窝见软组织密度影，边缘较毛糙，截面积约1.4CM×1.2CM；增强扫描呈不均匀强化。左锁上间隙较模糊，纵隔内左肾见小囊性密度灶。胰腺、脾、双侧肾上腺及右肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。双肺野内见多发结节灶，部分边缘模糊，形态欠规则，大者直径约0.5CM。所扫肝脏大小、形态可，实质密度均质。膀胱壁不厚。子宫及双附件未见明确异常。盆腔内未见明确肿大淋巴结。右侧多发肋骨、左侧髂骨、左侧耻骨及坐骨示溶骨性骨质破坏。	</t>
-  </si>
-  <si>
-    <t>左侧腋窝软组织,骨,双肺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左乳癌术后；左侧内乳区淋巴结转移；肝脏多发转移；多发骨转移，不除外累及椎管；双肺结节灶，考虑转移2.肝内胆管轻度扩张3.肝囊肿4.双肾小囊肿5.甲状腺低密度灶。左乳术后缺如，术区未见异常增厚及强化灶。左腋窝结构略示紊乱。右乳未见异常。左侧内乳区可见肿大淋巴结，短径约1.0CM，增强扫描可见较显著强化。右腋窝、纵隔及双肺门未见肿大淋巴结。双侧胸腔未见积液征象。双肺野均可见小结节灶，大者直径约0.4CM，边缘略示模糊。扫描野内甲状腺内可见低密度灶，边界清晰。肝内示多发低密度结节及肿块影，部分融合，大者截面约6.5CM×3.4CM，边缘模糊，增强扫描可见不均匀强化。肝内胆管轻度扩张。另于肝内见类圆形囊性密度灶，大者直径约6.0CM，边界清，无强化，局部突出于肝实质之外。胆囊充盈可，壁不厚。胰、脾及肾上腺未见异常。双肾可见小的囊性密度灶，大者直径约0.5CM，边界清。腹腔内肝胃韧带区及腹膜后腹主动脉旁可见小淋巴结，大者短径约0.5CM。另多发胸椎、双侧部分肋骨可见成骨性及溶骨性骨质破坏，局部形成软组织密度影，椎管显示不清。	</t>
-  </si>
-  <si>
-    <t>左侧内乳区淋巴结,肝脏,骨,双肺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳内上象限结节灶，考虑右乳癌并右腋窝淋巴结转移2.颅脑扫描未见明确异常。右乳内上象限可见一不规则软组织密度灶，截面大小约1.3CM×1.2CM，边缘模糊可见浅分叶，并可见少许毛刺；增强后肿块呈较显著强化。右侧腋窝可见肿大淋巴结，大者短径约1.0CM，可见较显著强化。左乳未见异常。左腋窝及双侧内乳区未见明显肿大淋巴结。双侧肺野较清晰，肺野内未见实性占位。双肺门及纵隔内未见明显肿大淋巴结。双侧胸腔未见积液。扫描野内骨质未见明显破坏征象。脑实质密度正常，未见明显异常密度灶。脑室、池无扩张，脑沟、裂无增深，中线结构居中。颅骨诸骨质未见破坏。	</t>
-  </si>
-  <si>
-    <t>1.3CM×1.2CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺上叶癌侵及脏层胸膜治疗后，较前(2016-07-20)基本变化不著；骨转移，变化不著2.右乳腺体局部密度增高，变化不著。右肺上叶尖段可见软组织密度影，最大截面约0.9CM×1.1CM(纵隔窗)，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；余双肺野较清晰，未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。右乳腺体局部密度增高。所扫甲状腺内示低密度灶。肝脏形态、大小可，实质密度均质。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰、脾、扫描野内双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。骨窗示：双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏，以成骨性为主，部分肋骨形态欠规则，略呈膨胀性改变。	</t>
-  </si>
-  <si>
-    <t>会诊*******(2016-7-21)右肺尖段示不规则结节灶，边界清晰，大小约为1.0CM×0.9CM，增强扫描呈中度强化。右肺门及纵隔多发淋巴结肿大，部分融合成团，大者短径约为4.5CM，包绕挤压邻近组织。肝脏大小形态可，肝左叶示低密度影，边界清晰，增强扫描未见强化。胆囊不大，壁略厚。胰腺、双肾、双侧肾上腺及脾未见异常。腹腔及腹膜后未见肿大淋巴结。	1.考虑右肺上叶癌并纵隔及右肺门淋巴结转移；2.肝囊肿、胆囊炎。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌治疗后，较前片2015-12-10变化不著；双肺类结节灶治疗后，变化不著；右肺门、纵隔淋巴结转移治疗后，较前变化不著。2.右肺下叶炎症、纤维灶，变化不著。3.右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根密度增高影，变化不著。右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。余双肺可见小类结节灶，边缘模糊，大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径约1.0CM，部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。肝内见一斑点状钙化灶。胆囊充盈可，壁未见增厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。肝胃韧带区示结节灶，大者短径约0.6CM。T12右侧椎弓根示斑片状密度增高影。	</t>
-  </si>
-  <si>
-    <t>右肺上叶术后，上叶支气管截断，术区结构紊乱，未见异常强化。术区胸膜示增厚。双肺野内散在分部粟粒状密度增高影。纵隔内气管右旁、腔静脉后气管前间隙间隙模糊，考虑手术所致。肝脏形态、大小可，实质密度均质，肝右叶包膜下示一囊性低密度灶，边界欠清，直径约0.4CM。双肾内散在多个结节状低密度灶，大者直径约3.7CM，边界不清，有强化，位于左肾。胆囊充盈可，壁不厚。左肾上腺可见一结节灶，约1.8CM×2.4CM，明显强化。胰、脾形态大小密度未见明确异常。腹腔内及腹膜后未见明显增大淋巴结。	1.结合临床，右肺上叶癌术后改变；双肺粟粒状转移；双肾占位，考虑为转移；左肾上腺占位，考虑为转移瘤2.肝内低密度灶，建议观察。</t>
-  </si>
-  <si>
-    <t>双肺,双肾,左肾上腺</t>
-  </si>
-  <si>
-    <t>腰骶椎曲度略变直，部分椎体前缘见棘样突起，L3椎体前下缘见片状异常信号影，表现为T1WI、T2WI低信号，压脂序列为高信号。另L2椎体见T1WI、T2WI高信号影，压脂序列为低信号。椎间盘L5/S1向后膨，相应硬膜囊受压略变形，椎间隙略变窄。扫描野内子宫体积增大，其内见一较大肿块影，截面约3.9CM×3.2CM，表现为T1WI等信号，T2WI、压脂序列为低信号，边界清晰。	1.结合乳癌术后病史，腰椎L3转移。2.腰骶椎退行性变，椎间盘L5/S1膨出。3.腰椎L2椎体异常信号，考虑脂肪岛。4.考虑子宫肌瘤。</t>
-  </si>
-  <si>
-    <t>腰椎L3</t>
-  </si>
-  <si>
-    <t>右肺上叶尖段可见一不规则软组织密度影，截面约为1.1CM×0.9CM，病变边缘毛刺，呈分叶状，向内侵及纵隔并与纵隔肿大淋巴结分界欠清，增强后呈不均匀强化。双锁上、纵隔内血管前间隙、气管周围、腔静脉后气管间隙、主肺动脉窗区、隆突下、双肺门可见多发肿大淋巴结，大者短径约为1.1CM。双肺野可见多个大小不一的散在类结节灶，大者直径约为0.5CM。双侧胸腔内未见液性密度影。心包内示少许液体密度影。肝右后叶示一低密度灶(4-60)，边缘模糊，直径约0.3CM。余肝实质内示多个囊性密度影，长径不足0.5CM，肝左内叶实质内可见一长径约为1.2CM的低密度灶，边缘尚清，增强后强化明显，延迟扫描仍有强化。胆囊充盈可，壁略示增厚，内示结节状高密度影。脾、胰腺、双侧肾上腺、双肾未见明显异常。腹膜后腹主动脉周围示多个肿大淋巴结影，大者短径约为0.5CM。骨窗示：L1椎体内示低密度灶，余部分胸腰椎椎体局部骨质密度不均匀，可见类圆形高密度影。	1.结合临床，右肺上叶癌并双肺转移，较前(2014-11-6)好转；双锁上、纵隔、双肺门、腹膜后淋巴结转移，较前好转；肝内低密度灶，较前变化不著2.肝左叶低密度灶，考虑血管瘤，变化不著4.胆囊炎，胆囊结石5.肝囊肿6.少量心包节积液7.L1椎体骨质异常，变化不著；部分胸腰椎骨质密度局部增高；较前变化不著。</t>
-  </si>
-  <si>
-    <t>1.1CM×0.9CM</t>
-  </si>
-  <si>
-    <t>双肺,双锁上、纵隔、双肺门、腹膜后淋巴结</t>
-  </si>
-  <si>
-    <t>右乳术后，腋窝、双侧内乳区、双肺门及纵隔未见明确肿大淋巴结。右肺下叶、左肺下叶见两个类磨玻璃密度影，边界尚清，大者直径约0.4CM。左侧叶间胸膜见一类结节灶，直径约0.3CM。扫描野内胆囊内见一小结节灶，直径约0.3CM。扫描野内骨质未见明显破坏。	1.结合临床，右乳癌并右侧腋窝淋巴结转移术后状态。2.双肺类磨玻璃密度灶，较前变化不著3.左侧叶间胸膜类结节灶，变化不著4.胆囊内结节灶，考虑息肉可能性大，较前变化不著。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左乳癌术后；右乳部分术后改变2.双肺结节灶，结合病史，首先考虑转移瘤3.双肺含气囊肿4.左侧锁骨上区及纵隔略大淋巴结5.结合临床，胸椎术后改变6.上腹部扫描未见明显异常。左乳术后缺如，术区未见异常增厚及强化灶。左腋窝结构略示紊乱。右乳部分术后，未见异常密度灶。右腋窝、内乳区未见明显肿大淋巴结。左侧锁骨上区及纵隔内气管隆突前可见略大或小淋巴结，大者短径约0.6CM。双肺野可见多个结节灶，大者与右侧叶间胸膜关系密切，截面约1.0CM×0.7CM，边缘毛糙，增强扫描可见较显著强化。左肺上叶及右肺下叶各示一囊性密度灶，大者位于右侧，长径约2.7CM，边界清。肝脏未见异常占位灶。胆囊胰脾肾上腺及所扫双肾未见异常。腹腔及腹膜后未见肿大淋巴结。所扫胸椎可见高密度固定器影。	</t>
-  </si>
-  <si>
-    <t>右肺上叶可见软组织密度肿块影，大小约3.3CM×4.7CM，分叶状，边缘毛糙，增强后呈明显强化。右肺内(图5-19、46、49)可见结节灶，大者直径约0.3CM。纵隔内未见肿大淋巴结。肝脏实质内可见囊性密度灶，大者直径约0.5CM。胆、胰、脾及双肾未见异常。腹膜后未见肿大淋巴结。	1.右肺癌并右肺转移2.肝囊肿。</t>
-  </si>
-  <si>
-    <t>3.3CM×4.7CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.右乳癌术后改变；多发骨转移，较前2016-9-12变化不著2.左肺钙化灶3.右肾囊肿4.腹腔内淋巴结肿大，较前略饱满4.右侧上颌窦炎症5.颅脑扫描未见明显异常。右乳术后缺如，术区皮肤略增厚，可见强化。右侧腋窝斑片状密度增高影，考虑为淋巴结清扫术后改变。左乳及左侧腋窝未见异常。左肺下叶见散小结节灶，直径约0.3CM。双肺门及纵隔内未见肿大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及左肾形态、大小、密度未见异常。右肾实质内可见类圆形囊性低密度灶，边界清晰，未见强化。腹腔内肝胃韧带区见稍大淋巴结，短径约0.8CM。腹膜后未见增大淋巴结。骨窗示：扫描野内多发胸腰骶椎体、胸骨、左侧锁骨、右侧肩胛骨、部分肋骨、左侧肱骨、双侧髂骨、双侧耻骨、坐骨、右侧股骨呈成骨性及溶骨性骨质破坏，局部呈膨胀性改变。脑实质密度正常，未见明显异常密度灶及强化灶。脑室、池无扩张，中线结构居中，颅骨诸骨质未见破坏。右侧上颌窦内见液性密度影。	</t>
-  </si>
-  <si>
-    <t>骨,胸腰骶椎体,胸骨,左侧锁骨,右侧肩胛骨,肋骨,左侧肱骨,双侧髂骨,双侧耻骨,坐骨,右侧股骨</t>
-  </si>
-  <si>
-    <t>右肺下叶背段可见软组织密度结节灶，大小约1.6CM×2.6CM，边缘毛糙，紧贴纵隔胸膜；增强后结节呈较明显强化。右侧胸膜示不规则增厚。右侧胸腔内可见少许液性密度影。右侧下叶示局限性实变。纵隔内未见肿大淋巴结。肝脏大小形态可，实质均质。胆囊充盈可，壁不厚。胰腺、脾及双肾大小形态密度未见异常。腹腔、腹膜后未见肿大淋巴结。腹腔内未见积液征象。膀胱充盈可，壁不厚。子宫及附件区未见异常。盆腔内未见肿大淋巴结。	1.结合临床，右肺癌并右侧胸膜转移，右侧胸腔积液伴右肺局限性实变2.腹盆部扫描未见异常。</t>
-  </si>
-  <si>
-    <t>1.6CM×2.6CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.左肺中心型肺癌累及肺门、纵隔及心包、阻塞性肺不张、肺炎治疗后，较前(2016-9-12)缩小；双侧胸膜多发结节灶，考虑转移，部分略缩小，部分变化不著；纵隔淋巴结转移，略缩小；右肾上腺转移，变化不著2.肝囊肿；双肾囊肿；左肾低密度灶，胰腺低密度灶，建议观察3.心包、左胸腔少量积液，略减少4.右肺类磨玻璃密度灶，建议观察5.部分椎骨密度略增高，请结合其他检查或观察。左肺门周围可见不规则软组织密度肿块影，约3.7CM×4.3CM，增强扫描呈明显不均匀强化，与其远端不张的肺组织、肺门淋巴结、纵隔内软组织及心包分界不清。右肺上叶近胸膜下示类磨玻璃密度灶。双侧胸膜及叶间胸膜上可见多发类结节灶，大者长径约0.6CM。纵隔内2R、4R、4L、5、6、7、8区示多发融合的淋巴结影，大者短径约1.8CM。心包内及左胸腔内可见液性密度影。肝脏大小形态未见异常，肝实质内可见数个囊性低密度灶，边界清，增强扫描无强化。左肾示斑片状低密度灶。另双肾内示小囊性密度灶。胰尾部示低密度影。胆囊、脾、左肾上腺未见异常，右肾上腺示一类结节灶，长径约3.3CM。腹腔内示短径不足1.0CM淋巴结。腹膜后未见肿大淋巴结影。部分椎骨密度略增高。	</t>
-  </si>
-  <si>
-    <t>3.7CM×4.3CM</t>
-  </si>
-  <si>
-    <t>直肠术后，术区示高密度吻合器影，壁未见明显增厚。盆腔及双侧腹股沟未见明显增大淋巴结。肝实质密度减低，内示小囊性密度灶。双肾内示低密度灶，边缘模糊，另双肾内示囊性密度灶。腹腔及腹膜后未见增大淋巴结。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.7CM(纵隔窗)，内示空洞影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚，胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。	1.结合临床，直肠癌术后；双肺转移，较前(2016-12-8)部分增大，部分变化不著2.双肾低密度灶，基本变化不著，建议观察；双肾囊肿3.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著5.脂肪肝；考虑肝囊肿，变化不著。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">结合临床，左乳癌术后，术区复发并前胸壁转移，较前(2014-9-26)部分好转，部分变化不著2.左锁上、左肺门、纵隔小淋巴结，变化不著；左颈部淋巴结稍大3.双肺转移，较前大部分变化不著，部分增大4.多发骨转移，较前大部分变化不著，部分密度增高5.肝内低密度灶，较前似缩小，建议观察6.左肾未见显示，请结合临床。左乳术后缺如，胸肌尚存，左侧胸大小肌之间见一软组织肿块影，边缘模糊，直径约1.7CM，增强后示中度不均质强化。另于前胸壁皮肤局部增厚呈软组织密度影，增强后示中度强化。左锁上、左肺门、纵隔内右上气管旁、主肺动脉窗区、腔静脉后方、气管隆突下、左侧颈后三角区小淋巴结，大者短径不足1.0CM。双肺见小结节灶，大者直径约0.6CM。肝左外叶内见一低密度灶，边缘略示模糊，大者直径不足0.5CM。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及右肾未见异常。扫描野内左肾未见显示。腹腔及腹膜后未见明显肿大淋巴结。骨窗示：胸骨、部分胸腰椎椎体、肋骨见骨质破坏区。	</t>
-  </si>
-  <si>
-    <t>前胸壁,双肺,骨,胸骨,胸腰椎椎体,肋骨</t>
-  </si>
-  <si>
-    <t>右侧小脑半球及双侧大脑半球见散在大小不等的略长T1略长T2结节样影，压水像及DWI为高信号，增强扫描可见结节样强化，大者大小约0.6CM×0.8CM位于左侧颞叶。双侧大脑半球及小脑蚓部见结节状、斑片状等T1略长T2信号影，压水像及DWI为高信号，无强化。双侧大脑半球可见散在点片状等T1略长T2信号影且以侧脑室周围为著，压水像为高信号，DWI为等信号，增强后扫描无强化。脑室系统无扩大。中线结构居中。双侧上颌窦、筛窦粘膜增厚。余未见异常。	1.结合肺癌病史，脑多发转移瘤，较本院(2016-09-14)MR片进展。2.考虑脑多发急性梗塞灶，建议结合临床。3.脑多发缺血灶。4.双上颌窦、筛窦炎。</t>
-  </si>
-  <si>
-    <t>右侧小脑半球及双侧大脑半球,脑</t>
-  </si>
-  <si>
-    <t>左肺上叶纵隔旁示一不规则软组织密度结节灶，与纵隔内主肺动脉窗区肿大淋巴结分界不清，与左肺上叶支气管及左肺动脉关系密切。左肺野内见斑片索条状密度增高影，左侧叶裂及胸膜可见多发类结节状增厚。右侧肺野较清晰。纵隔内及双肺门未见确切肿大淋巴结。左侧胸腔内可见少许液性密度影及引流管影。左侧心包及左侧心膈角区可见多发结节影，大者长径约1.0CM。肝脏大小形态未见异常，肝实质内可见一小低密度灶，边界清。胆囊、胰腺、脾、双肾、肾上腺未见异常，腹腔腹膜后未见肿大淋巴结影。脑实质内未见异常密度影，脑沟、脑池未见增宽或狭窄，脑室大小、形态，位置正常，中线结构居中。增强：脑实质未见异常强化，脑沟、脑池、脑室内未见异常。	1.结合临床，左肺癌治疗后，较前(2016-3-30)片变化不著，左侧胸膜转移及叶裂转移较前变化不著2.左肺慢性炎症及纤维灶3.左侧少量胸腔积液较前变化不著4.左侧心包及心膈角区结节影，较前变化不著5.颅脑扫描未见异常6.肝囊肿。</t>
-  </si>
-  <si>
-    <t>左侧叶裂,左侧胸膜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左乳癌术后改变；左侧胸肌深面转移；左侧内乳淋巴结肿大，较前(2014-8-18)变化不著2.肝转移，较前明显进展3.颅脑扫描未见异常。左乳术后，术区结构紊乱，未见结节及肿块。左侧腋窝结构紊乱。左侧胸肌深面可见软组织密度结节灶，大者大小约1.6CM×2.4CM。右乳未见异常。左侧内乳见增大淋巴结，短径约0.8CM。左侧腋窝、双侧肺门及纵隔未见增大淋巴结。右侧水平裂区(3-25)见一类结节灶，直径约0.2CM。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝实质内见多发低密度结节及肿块，边缘略模糊，其密度不均。胆囊充盈可，壁不厚。胰脾、双侧肾上腺及双肾未见异常。腹腔内肝总动脉见短径约0.6CM小淋巴结。腹膜后未见增大淋巴结。脑实质均质，未见异常密度灶。脑室系统未见扩张。中线结构居中。	</t>
-  </si>
-  <si>
-    <t>左侧胸肌深面,肝</t>
-  </si>
-  <si>
-    <t>右乳腺体内、皮肤区、右胸壁、右腋窝及扫描野内右颈根部可见多发软组织密度灶，边缘毛糙，增强后呈不均质明显强化，部分相互融合，右腋窝者局部可见溃疡形成。右侧胸壁及右上臂软组织肿胀。左乳未见异常。左侧腋窝、气管右旁可见增大淋巴结，大者短径不足1.0CM。双肺内可见散在类圆形结节灶，边界较清晰，大者直径约0.6CM。双肺见斑片索条影。甲状腺体积增大，局部可见低密度灶及钙化灶。双侧胸膜略增厚。扫描野内肝脏实质密度减低。右肾见囊性结节。右侧锁骨呈内固定术后改变。右侧部分肋骨密度欠均。脑实质密度均匀，未见结节及异常强化灶。脑室脑池未见扩张。中线结构居中。	1.右乳癌侵及皮肤及胸壁并右侧胸壁转移、右腋窝及右颈根部淋巴结转移治疗后，较前(2016-7-27)部分好转，部分进展；双肺转移，较前基本变化不著；双肺炎症2.左侧腋窝、纵隔小淋巴结，变化不著3.甲状腺增大伴低密度灶及钙化灶，考虑变化不著4.脂肪肝5.右侧锁骨术后改变6.颅脑扫描未见异常。</t>
-  </si>
-  <si>
-    <t>右侧胸壁,双肺,右腋窝及右颈根部淋巴结</t>
-  </si>
-  <si>
-    <t>右肺上叶尖段可见软组织密度影，最大截面约0.9CM×1.1CM(纵隔窗)，边缘浅分叶可见细毛刺，内缘有长毛刺与纵隔相连，增强扫描呈中等不均匀性强化；余双肺野较清晰，未见明确异常密度灶。左侧胸膜略增厚。纵隔、双肺门未见明确肿大淋巴结。肝脏形态、大小可，实质密度均质。肝内外胆管未见扩张。胆囊充盈可，壁略厚。胰、脾、扫描野内双肾未见明确异常。双侧肾上腺略示饱满。腹腔及腹膜后未见明确肿大淋巴结。骨窗示：双侧锁骨、肱骨、肩胛骨、胸骨、多发肋骨、椎骨可见骨质破坏，以成骨性为主，部分肋骨形态欠规则，略呈膨胀性改变。	1.结合临床，右肺上叶癌侵及脏层胸膜治疗后，较前(2016-5-23)略缩小；骨转移，变化不著2.双侧肾上腺饱满，变化不著。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后2.右肺占位，考虑右肺癌，较前(2016-05-12)略好转3.右肺门及纵隔淋巴结肿大，考虑转移，较前略好转；右锁上淋巴结稍大，变化不著4.右侧胸膜增厚并结节灶，考虑转移，变化不著5.胆囊炎7.甲状腺左侧叶低密度灶，变化不著。右肺尖见不规则软组织密度影，其边缘可见小空洞影，边缘分叶、模糊，并可见胸膜牵拉征，截面积约3.5CM×2.2CM；增强扫描呈较显著不均匀强化。右肺上叶及中叶见少许条索状密度增高影。左肺野较清晰。右肺门、纵隔内2R、3A、4R、7区见多发肿大淋巴结，大者短径约1.5CM，增强扫描呈不均匀强化。右锁上见稍大淋巴结，短径约0.5CM。右侧胸膜局部增厚呈结节状(图7-26)，直径约0.6CM，呈较显著不均匀强化。右乳术后缺如，术区结构紊乱，周围间隙模糊，未见明确异常强化。左乳及左侧腋窝未见明确异常。肝脏大小、形态正常，实质密度均质。胆囊充盈好，壁不厚。以、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。甲状腺左侧叶见小低密度灶，边界尚清，直径约0.5CM。鼻咽、口咽及喉未见异常。双侧颈后三角区见大者短径约0.5CM小淋巴结。	</t>
-  </si>
-  <si>
-    <t>右乳,右肺尖</t>
-  </si>
-  <si>
-    <t>右肺门及纵隔淋巴结,右侧胸膜</t>
-  </si>
-  <si>
-    <t>右肺下叶支气管局部狭窄截断，周围示软组织密度肿块影，其与右肺门肿大淋巴结、远端不张肺组织分界不清，大小不易测量，增强后呈不均匀明显强化；邻近右肺野示不规则形斑片影，牵拉胸膜；余右肺野散在数个结节灶，大者长径约1.0CM，部分局部牵拉胸膜。气管及余各支气管通畅。右侧气管食管沟、腔静脉后、主肺动脉窗区、主动脉弓旁、隆突下、右侧心膈角区及右肺门示增大淋巴结，大者短径约0.6CM。右侧胸膜增厚，局部呈小结节状，大者直径约0.3CM；右侧胸腔内示弧形液体密度影。心包内示少量液体密度影。右侧乳腺术后缺如，术区未见明显增厚及异常强化。左乳未见异常。双侧腋窝、内乳区及锁骨上区未见明显肿大淋巴结。肝右叶示颗粒状钙化密度影。胆囊充盈可，壁稍厚并可见强化。胰腺、脾、双肾上腺及扫描范围内双肾未见确切异常。腹腔及腹膜后未见明显肿大淋巴结。左侧大脑内示多发结节、肿块影，大者截面约4.2CM×3.1CM，密度不均匀，周围示大片无强化的低密度水肿带，邻近侧脑室局部略示受压变形，增强后病灶呈环形明显强化。中线结构略右偏。双侧上颌窦内示液体密度影。骨窗：胸骨柄右侧、胸骨下段及右侧第12肋局部骨质密度不均匀增高。	1.结合临床，右侧中心型肺癌并阻塞性肺不张较前2014-8-18变化不著，右肺门及纵隔淋巴结转移，右胸膜转移，骨转移，较前变化不著；脑转移较前略好转2.右侧胸腔积液、心包积液3.右肺结节，建议观察4.右侧乳腺术后改变5.肝内钙化灶6.胆囊炎7.双上颌窦炎。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合病史，右肺癌术后复发并右肺门、纵隔、右锁上淋巴结转移；双肺转移；腹腔淋巴结肿大，考虑转移，大部变化不著，部分略饱满2.双肺炎症，变化不著；右侧少量胸腔积液，基本变化不著，心包积液；右侧胸膜增厚，变化不著3.左胸壁脂肪瘤，变化不著4.脾实质内低密度灶，变化不著，建议观察5.脂肪肝6.左侧肩胛骨局部骨质稀疏，变化不著。右肺下叶切除术后，右下肺门区见软组织肿块影，截面约2.0CM×4.3CM。双肺内见多发结节灶，大者短径约0.7CM。双肺近纵隔周围见多发斑片状密度增高影，其内可见支气管充气征。右侧胸腔见少量液性密度影，右侧胸膜增厚。右锁上、右肺门、纵隔内2R、4R、7区见多发增大淋巴结，部分融合成团，大者短径约2.5CM。心包腔内见少量液性密度影。肝脏密度减低。腹腔内见多发肿大淋巴结，大者短径约2.0CM。脾实质内见一低密度灶，边缘模糊。左前下胸壁软组织内示梭形脂肪样密度影，边界清。骨窗示：左侧肩胛骨局部骨质结节状稀疏。	</t>
-  </si>
-  <si>
-    <t>右肺门、纵隔、右锁上淋巴结,双肺,腹腔淋巴结</t>
-  </si>
-  <si>
-    <t>右肺中叶支气管开口处见一不规则软组织密度肿块影，边缘模糊，病变大小不易测量，增强后可见轻度强化。病变远端示片状肺不张影。双肺见多发结节灶，大者直径约0.5CM。纵隔内未见明显肿大淋巴结。肝实质内见多发囊性密度灶，大者直径不足0.5CM。右肾见直径约0.5CM低密度结节灶，未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔内肝胃韧带区及肝十二指肠韧带区见短径不足0.5CM小淋巴结。腹膜后未见肿大淋巴结。部分胸椎骨质密度增高，右侧第3肋局限性骨质密度增高。	1.结合临床，右肺癌并阻塞性炎症，较前片(2015-10-22)示进展2.双肺多发结节灶，考虑转移，较前部分略增大，部分变化不著3.肝囊肿4.部分胸椎体及肋骨骨质密度增高，考虑转移，较前变化不著5.右肾低密度灶，变化不著。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌治疗后，较前(2014-12-12)变化不著；右侧胸膜转移较前变化不著，右侧胸腔积液伴右肺局限性实变，进展2.左侧叶间胸膜结节灶，转移不除外，较前变化不著，建议观察3.肝内多发强化灶，考虑血管瘤4.少量腹水5.部分肠腔扩张，肠壁增厚，请结合临床。右侧胸腔内可见大量液性密度影，右肺中下叶萎缩实变，右肺下叶背段脊柱旁可见软组织密度结节灶，大小约1.7CM×1.0CM，边缘毛糙，局部与邻近胸膜关系密切，并可见胸膜牵拉征；增强后结节呈中度不均匀强化。右侧胸膜(含叶间胸膜及纵隔胸膜)示不规则增厚，局部呈条状及结节状，增强扫描可见强化。左侧叶间胸膜见多发结节灶。双肺门及纵隔内间隙模糊，未见肿大淋巴结。肝脏大小、形态可，动脉期实质内见数个强化结节灶，边界较清，强化较显著，门脉及延迟期部分显示不清。另于肝右叶见一低密度灶(图2-55)，边界清，直径约0.8CM，动脉期中心可见强化，门脉及延迟显示欠清。胆囊充盈可，壁不厚。胰腺、脾及双肾未见明确异常。腹腔、腹膜后未见明确肿大淋巴结。腹腔内部分肠道明显扩张，肠壁增厚并分层，腹腔内可见少量液性密度影。	</t>
-  </si>
-  <si>
-    <t>右肺下叶见不规则斑片状软组织影，边缘毛糙，大小不易测量，增强后中度强化；其远端肺野见斑片状及索条状密度增高影。余双肺可见小类结节灶，边缘模糊，大者直径不足0.5CM。双侧锁骨上、右肺门、纵隔内血管前间隙、腔静脉后、左侧气管食管沟、主动脉弓旁、隆突下见多发增大或小淋巴结，大者短径约1.1CM，部分增强后强化显著。右侧胸腔内示少量液体密度影。右侧胸膜略增厚。肝内见一斑点状钙化灶。胆囊充盈可，壁未见增厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。肝胃韧带区示结节灶，大者短径约0.6CM。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。T12右侧椎弓根示斑片状密度增高影。	1.结合临床，右肺癌治疗后，较前片2015-8-25变化不著；双肺类结节灶治疗后，变化不著；右肺门、纵隔淋巴结转移治疗后，较前变化不著。2.右肺下叶炎症、纤维灶，变化不著。3.右侧胸膜略增厚。4.肝内钙化灶。5.T12右侧椎弓根密度增高影，变化不著。6.颅脑CT扫描未见明显异常。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、结合临床，右乳癌，右侧腋窝淋巴结肿大，考虑转移2.双肺下叶炎症；2、肝内低密度灶，建议定期复查3、颅脑扫描未见异常。右乳外上象限示一软组织肿块影，呈浅分叶状，与周围腺体分界欠清，最大截面约4.1CM×2.8CM，增强扫描边缘明显强化，肿块与胸大肌见脂肪间隙清晰，右侧腋窝见多枚肿大淋巴结，较大者短径约1.3CM。右乳皮肤局部略示增厚。左乳未见明显异常。双侧内乳区未见明显增大淋巴结。双肺纹理清晰，两肺下叶外基底段见斑片状、索条状高密度。纵隔居中，内未见确切肿大淋巴结，心影大小形态尚可，双侧胸膜无增厚，胸腔无积液，胸壁未见异常。扫及肝右前叶下段见类圆形低密度，截面大小约0.4CM×0.5CM，增强扫描未见强化。双侧大脑半球对侧，灰白质分界清楚，脑实质内未见确切异常密度灶，增强扫描未见强化，脑室系统未见扩大、脑沟、裂、池未见增宽，中线结构未见移位。	</t>
-  </si>
-  <si>
-    <t>4.1CM×2.8CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左乳癌术后改变；考虑多发骨转移2.肝转移。左乳术后，术区见高密度银夹影，未见结节及异常强化灶。右腋窝示小淋巴结，短径约0.3CM。双侧内乳区、左侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰，肺纹理分布自然，气管及各级支气管通畅。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝实质内示多发低密度灶，边缘模糊，大者直径约1.1CM。胆、胰、脾、双肾及双侧肾上腺未见异常。腹腔及腹膜后未见增大淋巴结。骨窗：部分腰椎、胸椎见多发骨质破坏。	</t>
-  </si>
-  <si>
-    <t>骨,肝,腰椎,胸椎</t>
-  </si>
-  <si>
-    <t>右乳外下象限见一等T1等T2结节影，压脂序列为略高信号，DWI为高信号，大小约1.2CM×1.0CM，边缘毛糙，与邻近皮肤相贴致其略凹陷；增强扫描病灶呈显著强化，时间-信号强度曲线为流出型。左乳增强前后未见明显占位性病灶。右侧腋窝见短径约1.7CM肿大淋巴结。左侧腋窝见大者短径不足0.5CM小淋巴结。右侧侧脑室前角右旁见一约0.3CM×0.6CM的结节状异常信号影，表现为T2WI高信号，压水序列为中心低、边缘高信号，DWI为低信号，增强扫描无强化。余脑实质增强后扫描未见异常信号灶。脑室、池、脑沟裂未见异常。中线结构居中，未见移位。双侧桥小脑角区未见占位性病变。	1.结合病史，考虑右乳癌并同侧腋窝淋巴转移(BI-RADS5级)。2.右侧侧脑室前角右旁梗死灶。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.右肺癌2.纵隔淋巴结转移3.右侧叶间胸膜结节，考虑转移4.右肺内小结节，不除外转移，建议观察5.右肺门淋巴结肿大6.左肺下叶钙化结节灶；左肺尖类结节灶，建议观察7.甲状腺右侧叶体积增大，考虑结节性甲状腺肿8.肝内低密度灶，考虑囊肿9.左肾囊肿10.颅脑扫描未见明确异常11.T3椎体骨质密度不均，请结合骨扫描。右肺上叶见一软组织密度结节灶，大小约2.5CM×2.0CM，其边缘浅分叶，并见细毛刺，外缘见胸膜凹陷征；增强后病变呈中等不均匀强化。左肺下叶见一长径约0.4CM钙化结节灶(图5-30)，边缘清晰。右肺内见少许小结节，边缘清晰，直径不足0.5CM。右侧水平裂及斜裂见多发小结节灶，边缘清晰，直径不足1.0CM。左肺尖(5-12)示一类结节灶，边界清，密度略高，直径约0.2CM。右肺门区见短径约0.9CM淋巴结。纵隔内4R见增大淋巴结，大者短径约1.9CM。甲状腺右侧叶体积增大，其内见钙化结节灶。双侧胸腔未见液性密度影。肝实质内见小低密度灶，边界欠清，大者直径不足1.0CM，未见明确强化。胆囊充盈可，壁不厚。左肾实质内见囊性密度灶，直径约1.2CM。胰腺、脾、右肾及双侧肾上腺未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。脑实质密度均质。脑室、池未见扩张。中线结构居中。骨窗示：T3椎体骨质密度不均。	</t>
-  </si>
-  <si>
-    <t>右肺,纵隔淋巴结,右侧叶间胸膜</t>
-  </si>
-  <si>
-    <t>右肺下叶切除术后，右下肺门区见软组织肿块影，截面约3.5CM×4.3CM。双肺内见多发结节灶，大者短径约2.3CM。双肺近纵隔周围见多发斑片状密度增高影，其内可见支气管充气征。右侧胸腔见少量液性密度影，右侧胸膜增厚。右锁上、右肺门、纵隔内2R、4R、7区见多发增大淋巴结，部分融合成团，大者短径约2.6CM。心包腔内见少量液性密度影。肝脏密度减低。腹腔内见多发肿大淋巴结，大者短径约2.4CM。脾实质内见一低密度灶，边缘模糊。左前下胸壁软组织内示梭形脂肪样密度影，边界清。骨窗示：左侧肩胛骨局部骨质结节状稀疏。	1.结合病史，右肺癌术后复发，较前(2016-10-05)片增大；右肺门、纵隔、右锁上淋巴结转移，基本稳定；双肺转移，较前进展；腹腔淋巴结肿大，考虑转移，部分略示增大，部分变化不著2.双肺炎症，变化不著；右侧少量胸腔积液，基本变化不著，心包积液，变化不著；右侧胸膜增厚，变化不著3.左胸壁脂肪瘤，变化不著4.脾实质内低密度灶，变化不著，建议观察5.脂肪肝6.左侧肩胛骨局部骨质稀疏，变化不著。</t>
-  </si>
-  <si>
-    <t>双肺,右肺门、纵隔、右锁上淋巴结,腹腔淋巴结</t>
-  </si>
-  <si>
-    <t>右乳癌术后，术区结构紊乱，局部增强前后未见明显占位性病灶。肝左右叶可见多发大小不等病灶，T1WI呈略低信号，T2WI及压脂像呈略高信号，DWI呈高信号，增强扫描病灶呈不均匀强化，大者约0.7CM位于左外叶。肝实质内及双肾实质内可见散在囊性结节，边界清楚，无强化，大者约1.0CM位于左肾。胆囊不大。脾、胰腺增强前后未见异常信号区。腹膜后未见明显肿大淋巴结。所扫部分椎体可见斑片状骨质破坏区，呈长T1短T2信号，压脂像及DWI为高信号，不均匀强化。余未见异常。	1.结合病史，右乳癌术后，肝(多发)及椎体转移，较本院(2016-01-11)MR片示肝转移明显好转。2.肝及双肾囊肿。</t>
-  </si>
-  <si>
-    <t>左肺术后，术区结构紊乱，可见片状密度增高影。右肺下叶近胸膜下可见多发结节灶，大者直径约0.7CM。右肺上叶及中叶见少许斑片条索状密度增高影，部分内见钙化灶。右肺中叶胸膜下见结节灶，部分内见钙化灶，大者直径约0.4CM。双侧胸膜未见增厚，双侧胸腔未见积液征象。双肺门、纵隔未见肿大淋巴结。直肠术后，吻合口壁未见增厚及异常强化征象。膀胱充盈可，壁不厚。子宫及附件区未见异常。盆腔内未见肿大淋巴结。盆腔内未见积液征象。肝脏形态、大小可，胆囊窝周围可见片状略低密度区，边界不清，余肝实质密度减低。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及双肾形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。	1.结合临床，直肠癌术后2.左肺术后改变，右肺新发结节灶，考虑转移3.右肺结节灶及钙化，较前变化不著4.肝近胆囊窝区低密度区，不除外不均质性脂肪肝，建议观察；脂肪肝。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左乳癌术后，左颈部术后2.右肺门及纵隔淋巴结肿大，转移可能性大，请结合前片；肝多发转移3.双肺炎症及纤维灶，双肺类结节，请结合前片4.部分椎体密度稍高，建议观察。左乳术后，术区结构紊乱，胸肌存在，壁未见增厚及异常强化。左颈根部术后，结构紊乱。左侧腋窝结构紊乱。右肺门及纵隔见大者短径约1.1CM肿大淋巴结。左肺门见短径不足0.5CM小淋巴结。双肺见斑片索条影及类结节，边缘不清。扫描野内肝内见大者长径约4.3CM不均匀强化灶。胸腰椎局部密度稍高。	</t>
-  </si>
-  <si>
-    <t>右肺门及纵隔淋巴结,肝</t>
-  </si>
-  <si>
-    <t>左乳术后缺如，左侧胸壁及胸肌复发术后，术区胸壁部分胸肌尚存，局部皮肤略增厚，轻度强化。左侧腋窝间隙模糊。右乳未见异常。右腋窝、内乳及纵隔未见明显肿大淋巴结。右肺示数个结节及类结节灶，大者长径约1.1CM，可见强化，局部略呈空洞状。左肺示少许斑片及条索影。扫描野内甲状腺内示数个低密度灶，直径不足0.5CM，边界清。右肾示囊性密度灶。肝脏、胆囊、胰腺、脾、双侧肾上腺及扫描野内左肾未见明显异常。腹腔及腹膜后未见肿大淋巴结。扫描野内骨质未见明显破坏征象。	1.结合临床，左乳癌术后，术区胸壁复发术后，术区皮肤略增厚，较前2016-8-22基本变化不著；右肺结节及类结节灶，转移待排，变化不著2.甲状腺低密度灶，变化不著3.左肺纤维灶4.右肾囊肿。</t>
-  </si>
-  <si>
-    <t>左乳外上象限可见较大不规则软组织密度肿块，边缘分叶，截面约4.6CM×2.9CM，其内可见粗大砂砾状钙化灶，肿块与周围腺体分界欠清，增强后病变呈较显著不均质强化。左侧乳腺皮肤不均匀增厚，增强后呈轻度不均匀强化。左侧腋窝可见多发肿大淋巴结，大者短径约1.4CM。左肺下叶叶间胸膜下可见软组织密度灶，截面约2.0CM×1.8CM，边缘浅分叶，增强后呈中度不均质强化。双侧叶间胸膜可见散在多发类结节灶，边界较清，大者直径约0.2CM。双肺门及纵隔内未见明显肿大淋巴结。扫描野内骨质未见明显破坏征象。	1.左乳癌并左腋窝淋巴结转移2.左肺下叶占位，不除外原发性肺癌3.双侧叶间胸膜多发结节灶，转移不能除外。</t>
-  </si>
-  <si>
-    <t>左乳,左肺下叶</t>
-  </si>
-  <si>
-    <t>4.6CM×2.9CM,2.0CM×1.8CM</t>
-  </si>
-  <si>
-    <t>双侧叶间胸膜,左腋窝淋巴结</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左乳癌术后，左上臂肿物、左侧内乳区及左侧胸膜结节高代谢，考虑转移。2.双肺下叶炎症；双侧胸膜略增厚，双侧胸腔积液。3.肺气肿；肺大泡。4.甲状腺钙化灶。5.肝囊肿。6.前列腺增生。静脉注射示踪剂FDG后60MMIN行体部全身FDGPET/CT显像。PET/CT图像示左乳术后缺如，术区部分胸肌保留，左上臂内侧近左腋窝处见软组织密度影，边缘见小条状金属异物，肿物呈不均匀放射性摄取增高，最高SUV4.8，左侧内乳区见小淋巴结，短径约为0.7CM，放射性摄取增高，最高SUV2.9。右乳及右腋窝未见异常放射性摄取。左侧胸膜见结节状增厚，轻度放射性摄取，最高SUV2.1。双侧胸膜略增厚，双侧胸腔示少量弧形液性密度影。双肺上叶胸膜下见囊泡状过度透气影，部分肺大泡。双肺下叶见斑片状磨玻璃密度影。冠状动脉走行区见条形钙化影。脑部未见异常放射性摄取。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。腹部胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝左叶小囊性密度影，直径约为0.7CM，肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影，肠壁未见确切增厚，考虑肠蠕动所致。腹膜后未见明显肿大淋巴结。腹水征阴性。腹壁软组织未见明显异常影像。盆腔内膀胱放射性浓聚如常，膀胱壁无增厚。两侧腹股沟无异常淋巴结显示。前列腺略增大，放射性分布大致正常。视野内中轴骨放射性分布略欠均匀。	</t>
-  </si>
-  <si>
-    <t>左上臂,左侧内乳区,左侧胸膜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左侧乳腺癌术后，局部胸壁类结节灶，建议观察；左侧内乳淋巴结转移，较前(2015-7-23)好转2.纵隔、右侧腋窝淋巴结肿大，考虑转移，较前部分缩小，部分变化不著3.右侧心膈角淋巴结肿大，较前增大，转移不除外4.脂肪肝；肝囊肿5.左肺上叶胸膜下慢性炎症及纤维变，变化不著。左侧乳腺术后，局部胸壁结构紊乱，见(2-17)类结节灶。右侧乳腺形态、大小、密度未见异常。左侧腋窝结构紊乱，未见增大淋巴结。左侧内乳区见短径约1.1CM淋巴结。右侧内乳区见短径不足0.5CM小淋巴结。右侧腋窝见多发增大淋巴结，大者短径约0.6CM。纵隔内血管前间隙3A、气管前间隙4R、弓旁6区见多发增大淋巴结，大者短径约1.2CM。右侧心膈角见短径约0.8CM淋巴结。左肺上叶胸膜下见少许条索状影。双侧胸腔内未见液性密度影。扫描野内肝脏密度减低，右叶见直径约0.8CM囊性密度灶，边缘清晰。	</t>
-  </si>
-  <si>
-    <t>左侧内乳淋巴结,纵隔、右侧腋窝淋巴结,右侧心膈角淋巴结</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，肝癌介入治疗后；部分病灶仍具活性2.双肺多发结节及类结节灶，转移瘤不能除外，建议密切观察3.肝脏囊肿4.双肺上叶气肿5.双肺上叶纤维灶。肝脏体积增大，形态欠规则，实质内见多发混杂密度结节及肿块影，边界欠清，部分可见假包膜形成，大者截面积约12.8CM×10.0CM；增强扫描呈中度不均匀强化，其内可见低密度坏死区，延迟后病灶部分可见廓清。肝实质内散在斑片状及结节状高密度碘油沉积影。另肝内可见散在囊性密度灶，未见强化。门脉主干及左支显示尚可，门脉右前支示受压显著变窄，右后支显示欠清。胆囊充盈可，壁不厚。胰腺、脾、双肾及双侧肾上腺未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。双侧肺野内见多发结节及类结节灶，部分与叶间胸膜关系密切，大者直径约0.4CM。双肺上叶见多发泡状过度透亮区及条索状密度增高影。双肺门及纵隔未见明确肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺癌并阻塞性炎症，较前片(2014-11-6)好转2.原左肺下叶结节灶，变化不著；双肺多发结节灶，转移可能性大3.肝囊肿4.部分胸椎体及肋骨骨质密度增高，变化不著，转移可能性大，请结合临床5.右肾低密度灶，建议观察。右肺中叶支气管开口处见一不规则软组织密度肿块影，边缘模糊，病变大小不易测量，增强后可见轻度强化。病变远端示片状肺不张影。双肺见多发结节灶，大者直径不足0.5CM。纵隔内未见明显肿大淋巴结。肝实质内见多发囊性密度灶，大者直径不足0.5CM。右肾见直径约0.5CM低密度结节灶，未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔内肝胃韧带区及肝十二指肠韧带区见短径不足0.5CM小淋巴结。腹膜后未见肿大淋巴结。部分胸椎骨质密度增高，右侧第3肋局限性骨质密度增高。	</t>
-  </si>
-  <si>
-    <t>左肺上叶见一空洞性病变，边缘分叶、毛糙，上叶支气管部分示截断，截面积约2.3CM×2.0CM；增强扫描呈轻度强化。右肺野内见结节状致密影。双肺内示斑片状密度增高影。左侧胸壁见高密度影，局部伪影较大，周围结构显示不清。左肺门见肿大淋巴结，短径约0.6CM。纵隔内见多发小淋巴结，大者短径约0.5CM。双侧胸膜示不均匀增厚并强化，双侧胸腔内见液性密度影。肝实质内见多发低密度灶，大部分边界较清，少许边缘模糊，大者直径约0.5CM。胆囊充盈可，壁增厚。右肾见囊性密度灶，边界清。腹腔及腹膜后未见明确肿大淋巴结。左侧第10、8肋骨示骨质膨胀，骨皮质欠连续，局部骨质密度增高或减低。	1.结合临床，左肺癌并左肺门淋巴结转移治疗后，较前(2016-09-18)示好转2.双肺炎症及部分膨胀不全，右肺钙化灶3.肝内多发低密度灶，部分为囊肿，部分建议观察，变化不著4.右肾囊肿5.部分肋骨骨质异常，不除外转移，较前变化不著6.双侧胸腔积液，右侧减少，左侧增多。</t>
-  </si>
-  <si>
-    <t>2.3CM×2.0CM</t>
-  </si>
-  <si>
-    <t>左侧第10、8肋骨,左肺门淋巴结</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合病史，左乳癌并左腋窝、左颈部淋巴结清扫术后改变，肝、骨多发转移伴FDG高代谢2.左前胸壁FDG略高代谢，为放疗后改变3.双肺多发小结节，未见异常代谢，较自带既往CT片(2015-2-11)变化不著，考虑陈旧结节；左肺纤维炎性变伴FDG高代谢；双肺门及纵隔炎性淋巴结伴FDG略高代谢4.胆囊小结石或钙化。静脉注射示踪剂FDG后60MMIN行PET/CT显像。PET/CT图像示左乳术后缺如，左前胸壁呈轻度斑片状放射性摄取，最高SUV2.0。左肺尖及左肺上叶近前胸膜下示斑片状实变影及纤维索条影，伴斑片状放射性摄取增高，以左肺尖为著，最高SUV6.0；双肺胸膜下示数个小结节，大者长径约0.5CM，均未见异常放射性摄取。双肺门及纵隔示放射性摄取略增高的淋巴结，最高SUV4.2。脑实质内未见明显异常。左颈部淋巴结清扫术后，术区结构紊乱，未见异常放射性摄取。鼻咽、口咽、下咽及喉部未见明显异常放射性浓聚灶。甲状腺两叶不大，形态可，腺实质内未见异常放射性浓聚灶。肝内示多发大小不一的圆形结节伴异常放射性摄取增高，大者长径约1.4CM，最高SUV12.8。胆囊大小正常，近胆囊壁局部示点状高密度影。肝门结构正常。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。胃充盈好，胃壁显影如常。腹部可见条索状肠影。腹腔、腹膜后未见明显肿大或放射性摄取异常增高的淋巴结。腹水征阴性。膀胱内示放射性尿液充填。子宫形态尚可，局部无异常放射性浓聚。两侧附件区未见异常放射性摄取。两侧腹股沟无异常淋巴结显示。L3、L4、骶骨椎体或附件示数个放射性浓聚灶，最高SUV5.4，局部骨质密度未见明显异常。	</t>
-  </si>
-  <si>
-    <t>肝,骨</t>
-  </si>
-  <si>
-    <t>左肺上叶近纵隔旁见软组织肿块影，边缘有毛刺，截面约1.5CM×1.2CM，增强后可见强化。双肺下叶示类结节灶。右肺下叶见少许条索影，余肺野清晰，未见异常。前列腺形态大小正常，边缘光整，与周围组织间隙清晰，实质内密度均匀。精囊腺形态大小密度正常。膀胱充盈好，壁不厚。盆腔内未见肿大淋巴结。左侧臀部肌群内见软组织肿块，邻近左侧髂骨骨质破坏，肿块最大截面约4.0CM×5.3CM。L4椎体可见局限性骨质密度减低。	1.结合临床，左肺癌，较前(2017-2-2)饱满2.左侧臀部肌肉转移累伴左髂骨骨质破坏，治疗后较前进展；L4椎体低密度灶，较前变化不著。</t>
-  </si>
-  <si>
-    <t>1.5CM×1.2CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，双侧乳腺癌术后改变，右侧皮肤增厚并强化，请结合其他检查2.双肺结节灶，不除外转移，较前2015-08-06变化不著，建议进一步检查3.肝内低密度灶，较前变化不著；左肾小囊肿4.T12椎体血管瘤。左乳术后缺如，术区未见异常强化灶；右侧乳腺术后，术区胸肌尚存，间隙模糊，皮肤略增厚，可见强化。左侧腋窝结构紊乱，可见短径约0.5CM的小淋巴结。双肺门及纵隔未见明确肿大淋巴结。双肺野内见多发结节灶，部分呈磨玻璃密度，边界较清，大者直径约0.5CM。肝脏大小、形态可，肝右叶实质内见一低密度灶，边界欠清，直径约0.5CM。左肾上极见囊性无强化小结节灶。左侧肾上腺饱满，密度未见明显异常。胆囊充盈可，壁略厚。腹腔及腹膜后未见明确肿大淋巴结。T12椎体内示低密度影，边界较清晰，其内可见粗颗粒状高密度影。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，双侧乳腺癌术后改变，右侧皮肤增厚并强化，较前2016-010-20片基本变化不著2.双肺结节灶，不除外转移，较前变化不著，建议观察3.肝内低密度灶，较前变化不著；左肾小囊肿4.T12椎体血管瘤5.胆囊炎。左乳术后缺如，术区未见异常强化灶；右侧乳腺术后，术区胸肌尚存，间隙模糊，皮肤略增厚，可见强化。左侧腋窝结构紊乱，可见短径约0.5CM的小淋巴结。双肺门及纵隔未见明确肿大淋巴结。双肺野内见多发结节灶，部分呈磨玻璃密度，边界较清，大者直径约0.5CM。肝脏大小、形态可，肝右叶实质内见一低密度灶，边界欠清，直径约0.5CM。左肾上极见囊性无强化小结节灶。左侧肾上腺饱满，密度未见明显异常。胆囊充盈可，壁厚。腹腔及腹膜后未见明确肿大淋巴结。T12椎体内示低密度影，边界较清晰，其内可见粗颗粒状高密度影。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右肺下叶癌并右侧胸膜转移较前(2014-8-20)变化不著2.右肺结节灶，考虑转移，较前变化不著；左肺上叶类结节灶，建议观察；左肺炎症3.左锁上、纵隔、腹腔及腹膜后小或稍大淋巴结，较前变化不著4.肝囊肿5.右肾囊肿6.肝内强化灶，建议观察7.右侧腮腺区结节灶，请结合临床8.双侧副鼻窦炎。右肺下叶基底段见软组织肿块影，边缘模糊，有分叶，肿块最大截面约2.0CM×3.4CM，增强后可见显著强化；邻近胸膜可见增厚。右肺内、右侧肋胸膜、叶间胸膜示多发结节灶，大者直径约0.3CM，增强后可见强化。左肺上叶胸膜下见直径约0.2CM小结节灶。左肺见多发索条状及斑片状密度增高影。左锁上、纵隔内腔静脉后方、气管隆突下示多发肿大淋巴结，短径约0.8CM。肝实质内见多发囊性密度灶，大者直径约3.0CM。另肝内(2-49)动脉期见一强化结节灶，长径约0.8CM，延迟呈等密度。胆囊充盈可，壁不厚。胰、脾、双侧肾上腺及扫描范围内左肾未见异常。右肾实质内见囊性密度灶，短径约2.0CM。肝总动脉旁及腹主动脉周围示增大淋巴结，大者短径约0.5CM。右侧腮腺区见一强化结节灶，直径约0.4CM。双侧上颌窦粘膜略增厚。鼻咽、口咽、喉及下咽未见异常。双侧甲状腺形态、大小、密度未见异常。双侧颈部未见增大淋巴结。	</t>
-  </si>
-  <si>
-    <t>2.0CM×3.4CM</t>
-  </si>
-  <si>
-    <t>右肺下叶基底段见软组织肿块影，边缘模糊，有分叶，左肺下叶支气管示截断，病变与远端膨胀不全肺组织分界不清，大小不易测量，增强后可见不均匀强化；邻近叶间胸膜可见增厚。右肺野内见多个结节灶，大者直径约0.5CM，大部分与胸膜关系密切，增强后可见强化。左肺上叶胸膜下见直径约0.2CM小结节灶。左肺见少许索条状及斑片状密度增高影。右侧胸膜示增厚并可见强化。右侧胸腔见液性密度影。左锁上伪影较大，间隙模糊。纵隔内腔静脉后方、气管隆突下示多发肿大淋巴结，大者短径约0.9CM。肝实质内见多发囊性密度灶，大者直径约3.0CM。另肝内动脉期见一略强化结节灶，延迟略呈等密度灶。胆囊充盈可，壁不厚。胰、脾、双侧肾上腺及扫描范围内左肾未见异常。右肾实质内见低密度灶，短径约1.1CM，增强局部似见强化。腹主动脉周围示淋巴结，大者短径约0.5CM。	1.结合临床，右肺下叶癌治疗后，较前(2014-12-08)病变示变化不著，周围肺不张示范围增大；右侧胸膜增厚，考虑转移，变化不著；右侧胸腔积液，较前增多；右肺转移，变化不著2.左肺上叶类结节灶，变化不著，建议观察；左肺炎症3.纵隔、腹膜后小或稍大淋巴结，较前变化不著4.肝囊肿5.右肾低密度灶，较前缩小，建议进一步检查6.肝内强化灶，较前变化不著，考虑血管瘤。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.右肺下叶癌并右侧胸膜(含叶间胸膜)转移较前2016-05-24变化不著；右肺门、纵隔小淋巴结，较前变化不著；多发骨质异常，较前变化不著2.上腹部扫描未见明显异常。右肺下叶背段可见不规则软组织密度肿块，截面大小约1.3CM×0.9CM，边缘浅分叶，周围可见多发长短毛刺，胸膜可见牵拉凹陷，增强后呈较显著不均质强化。左侧肺野较清晰。右侧胸膜(含叶间胸膜)可见不均匀增厚，可见多发结节灶，增强后呈较显著强化。左锁上、右肺门、纵隔内2R、4R、7区可见多发略肿大淋巴结，大者短径约0.5CM。右侧胸腔内见少量液性密度影。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及双肾形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。骨窗示：右侧第三、六、七肋骨示溶骨性骨质破坏。	</t>
-  </si>
-  <si>
-    <t>右侧胸膜(含叶间胸膜)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后2.右肺占位，考虑右肺癌3.右肺门及纵隔淋巴结肿大，考虑转移；右锁上淋巴结肿大4.右侧胸膜增厚并结节灶，考虑转移5.左侧胸腔少量积液6.胆囊炎7.甲状腺左侧叶低密度灶，建议观察。右肺尖见不规则软组织密度影，其边缘可见小空洞影，边缘分叶、模糊，并可见胸膜牵拉征，截面积约3.6CM×2.5CM；增强扫描呈较显著不均匀强化。右肺上叶及中叶见少许条索状密度增高影。左肺野较清晰。右肺门、纵隔内2R、3A、4R、7区见多发肿大淋巴结，大者短径约1.7CM，增强扫描呈不均匀强化。右锁上见稍大淋巴结，短径约0.5CM。右侧胸膜局部增厚呈结节状(图8-26)，直径约0.6CM，呈较显著不均匀强化。甲状腺左侧叶见小低密度灶，边界尚清，直径约0.5CM。右乳术后缺如，术区结构紊乱，周围间隙模糊，未见明确异常强化。左乳及左侧腋窝未见明确异常。左侧胸腔内见少量液性密度影。胆囊壁增厚。	</t>
-  </si>
-  <si>
-    <t>3.6CM×2.5CM</t>
-  </si>
-  <si>
-    <t>右乳外下象限原片2016-03-09所示强化结节灶现仅剩条索影，其内似见一直径不足0.5CM的结节状强化。余双乳腺体强化欠均质，内示小斑片状强化灶。右侧腋窝示大者短径约0.6CM淋巴结，强化较著。左侧锁骨上示短径不足0.5CM淋巴结。左侧腋窝见数个小淋巴结，部分淋巴结内可见脂肪密度影。纵隔及双肺门未见肿大淋巴结。右肺尖区示小类结节灶，密度较淡，余双肺内示索条影。	1.右乳癌并右腋窝淋巴结转移，较前2016-03-09明显好转。2.右肺类结节灶，较前略好转，考虑炎性可能大；3.双肺纤维灶，变化不著。</t>
-  </si>
-  <si>
-    <t>0.5CM</t>
-  </si>
-  <si>
-    <t>左乳术后，术区结构紊乱，未见结节及肿块。左侧腋窝结构紊乱。左侧胸肌深面可见软组织密度灶，大者大小约1.3CM×2.0CM，明显不均匀强化。右乳未见异常。左侧内乳区、左侧锁骨上、膈上前组、中组见增大淋巴结，大者短径约0.4CM。双侧肺门及纵隔未见肿大淋巴结。双肺野尚清晰。甲状腺内示低密度灶。扫描野内肝实质内见多发低密度结节及肿块，边缘略模糊，其密度不均。脑组织密度均质，各脑室池系统及中线结构未见异常。部分椎骨及肋骨示溶骨性破坏。	1.结合临床，左乳癌术后改变；左侧胸肌深面转移，较前(2016-7-5)好转；左侧内乳淋巴结肿大；肝转移，较前好转；左侧锁骨上、膈上淋巴结肿大，较前好转；骨转移变化不著2.甲状腺低密度灶，较前变化不著3.颅脑扫描未见异常。</t>
-  </si>
-  <si>
-    <t>左侧胸肌深面,肝,骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后，右胸壁类强化结节，建议观察；肝转移，较前2016-11-15部分饱满，部分变化不著；右肺结节灶，变化不著2.左肺纤维灶，变化不著3.胆囊炎4.部分骨质密度稍高，建议观察或ECT检查。右乳术后，术区未见增厚及异常强化征象。右胸壁(5-22)见一直径不足0.5CM小类结节，强化显著。右腋窝结构紊乱，未见肿大淋巴结。左乳及左腋窝未见异常。左肺可见少许条索状密度增高影。右肺上叶可见一类结节灶，边界模糊。双侧内乳区、肺门、纵隔内未见肿大淋巴结。肝脏实质内可见多发低密度肿块，大者直径约4.2CM，边缘模糊，轻度强化。胆囊充盈可，壁示增厚。胰、脾、双侧肾上腺及扫描野内双肾未见异常。腹腔腹膜后未见肿大淋巴结。胸骨及胸椎局部密度稍高。	</t>
-  </si>
-  <si>
-    <t>右肺下叶背段见不规则软组织影，大小约6.0CM×4.8CM，边缘见分叶征，其内密度不均匀，可见空洞形成，与邻近胸膜关系明确，右肺上叶(3-17、20)及左肺下叶(3-37)结节影，大者直径约0.4CM。纵隔内4R、4L、7及双肺门示多发结节灶，大者短径约1.2CM。胸廓骨质未见破坏。右侧甲状腺体积增大，向下凸入右上纵隔，其内密度边界，可见低密度区，周围散在点状致密灶。右侧基底节区近外囊处示一结节灶低密度灶，边界较清，长径约0.9CM，余脑实质内未见异常密度影，脑沟、脑池未见增宽或狭窄，脑室大小、形态，位置正常，中线结构居中。增强：脑实质未见异常强化，脑沟、脑池、脑室内未见异常。	1.右肺下叶肺癌累及胸膜并右肺门、纵隔淋巴结转移2.右肺小结节灶，不除外转移3.甲状腺体积增大并密度不均匀，考虑为结节性甲状腺肿4.右侧基底节区腔隙性脑梗塞5.双肺气肿。</t>
-  </si>
-  <si>
-    <t>6.0CM×4.8CM</t>
-  </si>
-  <si>
-    <t>右肺门、纵隔淋巴结,右肺</t>
-  </si>
-  <si>
-    <t>左乳腺体强化不均，内示斑片状、团片状强化灶，以外侧份为著，边缘毛糙，左乳皮肤增厚，乳头未见内陷，左胸壁软组织略肿胀。右乳未见明显异常。左侧腋窝示多发结节灶，强化较著，大者短径约1.5CM，边缘毛糙。左侧锁骨上、右腋窝、胸肌间及纵隔内主动脉弓旁、左肺门示大者短径约0.8CM淋巴结。左肺下叶背段示一截面约2.2CM×1.7CM软组织密度影，边缘毛糙、浅分叶，增强扫描呈较均质显著强化，内缘与纵隔及肺门结构分界欠清。甲状腺内示斑片状低密度灶。肝内示长径约0.7CM略低密度灶(4-40)。胆囊充盈可，壁略增厚。右肾示小囊性密度灶。胰腺、脾、双侧肾上腺及扫描野内左肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。骨窗示：部分椎骨示成骨性改变。双侧锁骨及左侧部分肋骨密度增高。颅骨密度略减低。	1.结合临床，左乳癌并左腋窝淋巴结转移。2.考虑骨转移。3.左侧锁骨上、右腋窝、胸肌间、纵隔及左肺门淋巴结增大。4.左肺占位，请结合前片或活检。5.甲状腺低密度灶。6.肝内低密度灶，伪影?建议观察。7.胆囊炎，右肾囊肿。8.颅脑CT扫描颅内结构未见明显异常。9.双侧锁骨及左侧部分肋骨密度增高，颅骨密度略减低，请结合其他检查或观察。</t>
-  </si>
-  <si>
-    <t>左腋窝淋巴结,骨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，直肠癌术后；考虑双肺转移，请结合前片。2.右侧精囊腺饱满、密度较低，请结合其他检查。3.考虑肝囊肿、双肾囊肿，右肾部分病变密度较高，请结合其他检查或观察。4.双侧胸膜略增厚。直肠术后，局部见金属吻合钉影，吻合口未见显著增厚及异常强化。膀胱充盈好，壁无增厚。右侧精囊腺略饱满，密度较低。左侧精囊腺及前列腺未见明显异常。左侧髂外血管旁示短径不足0.5CM淋巴结。双肺近胸膜下示多个结节灶，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约2.6CM，内示斑点状致密影及小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。肝脏实质内见斑片状低密度灶，边缘清晰，强化不著。肝内外胆管未见扩张。胆囊充盈可，壁增厚。双肾囊性密度灶，右侧部分密度略高。胰腺、脾及肾上腺形态、大小、密度未见异常。肠系膜区及腹膜后示短径不足0.5CM小淋巴结。	</t>
-  </si>
-  <si>
-    <t>右肺上叶纵隔旁见一团片状软组织密度影，大小约1.8CM×1.9CM(肺窗)，边缘毛糙，与纵隔胸膜关系密切，增强后病变呈中等强化。另于双肺内见少许斑片状密度增高影。双肺门及纵隔内未见确切增大淋巴结。双侧胸膜未见增厚。双侧胸腔未见液性密度影。心包腔内示少量液性密度影。肝脏未见异常密度灶。双侧肾上腺增大，见软组织密度结节灶，大者位于左侧，约1.8CM×2.2CM，可见强化。胆胰脾及右肾未见异常。左肾示囊性密度灶，直径约0.8CM，边界清，无强化。脑实质均质，未见异常密度灶。脑室系统未见扩张。中线结构居中。	1.结合病史，右肺上叶癌治疗后，病变较2015-04-07片增大2.双侧肾上腺结节灶，考虑转移，左侧者较前增大3.双肺纤维灶，较前变化不著4.心包少量积液5.左肾囊肿6.颅脑扫描未见异常。</t>
-  </si>
-  <si>
-    <t>1.8CM×1.9CM</t>
-  </si>
-  <si>
-    <t>直肠术后，术区示高密度吻合器影，壁未见明显增厚。盆腔及双侧腹股沟未见明显增大淋巴结。肝实质密度减低，内示小囊性密度灶。双肾内示低密度灶，边缘模糊，另双肾内示囊性密度灶。腹腔及腹膜后未见增大淋巴结。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约4.4CM(纵隔窗)，内示空洞影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚，胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。	1.结合临床，直肠癌术后；双肺转移，较前(2017-1-18)部分增大，部分变化不著2.双肾低密度灶，基本变化不著，建议观察；双肾囊肿3.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著5.脂肪肝；考虑肝囊肿，变化不著。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.右肺癌，较前2014-8-18变化不著2.纵隔淋巴结转移，变化不著3.右侧叶间胸膜结节，考虑转移，变化不著4.右肺内小结节，变化不著5.右肺门淋巴结肿大6.左肺下叶钙化结节灶；左肺尖类结节灶，可能为纤维灶7.甲状腺右侧叶体积增大，考虑结节性甲状腺肿8.T3椎体骨质密度不均，较前变化不著。右肺上叶见一软组织密度结节灶，大小约2.6CM×1.8CM，其边缘浅分叶，并见细毛刺，外缘见胸膜凹陷征；增强后病变呈中等不均匀强化。左肺下叶见一长径约0.4CM钙化结节灶(图4-32)，边缘清晰。右肺内见少许小结节，边缘清晰，直径不足0.5CM。右侧水平裂及斜裂见多发小结节灶，边缘清晰，直径不足1.0CM。左肺尖(4-14)示一类结节灶，边界清，密度略高，直径约0.2CM。右肺门区见短径约0.9CM淋巴结。纵隔内4R见增大淋巴结，大者短径约1.9CM。甲状腺右侧叶体积增大，其内见钙化结节灶。双侧胸腔未见液性密度影。骨窗示：T3椎体局部骨质密度不均。	</t>
-  </si>
-  <si>
-    <t>2.6CM×1.8CM</t>
-  </si>
-  <si>
-    <t>纵隔淋巴结,右侧叶间胸膜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.乳腺癌术后右肺、肝脏及纵隔多发淋巴结转移。2.右肺炎症；左肺下叶结节灶，考虑炎症；3.左肾囊肿；4.颅脑CT扫描未见明显异常；5.右侧上颌窦囊肿。会诊*******(2016-11-21)右侧乳腺癌术后缺如，术区未见异常密度灶。右肺上叶示不规则软组织密度影，大小约为2.3CM×2.6CM，可见分叶，与邻近胸膜关系密切，周围多发类结节灶及条索状、片状密度增高影，增强扫描可见强化。左肺下叶示结节灶，大小约为1.6CM×2.0CM，边界欠清晰，内示点状致密影，可见引流支气管，以宽基底与胸膜相连，增强扫描可见轻度强化。纵隔内示多发肿大淋巴结。肝脏体积略饱满，形态欠规则。肝内多发低密度影，最大截面约为3.8CM×4.0CM，部分内示点状致密影，增强扫描强化不著。胆囊体积略大，壁不厚。右肾、胰腺、脾及双侧肾上腺未见明显异常。左肾大小形态可，内示低密度影，边界清晰，未见强化。腹腔及腹膜后未见明显肿大淋巴结。脑实质均质。脑室系统未见扩张，中线结构居中。右侧上颌窦示囊性密度增高影，增强扫描强化不著。所扫颈腰椎未见明显骨质破坏征象。	</t>
-  </si>
-  <si>
-    <t>右肺,肝脏,纵隔多发淋巴结</t>
-  </si>
-  <si>
-    <t>左肺上叶可见一不规则软组织密度灶，大小约1.7CM×2.4CM，边缘分叶、毛刺，牵拉远端胸膜致其略示凹陷，增强扫描病变呈较显著不均匀强化。左下肺门区可见团片状软组织密度影，截面约2.1CM×1.2CM，边缘毛糙，增强扫描可见强化；左肺下叶支气管狭窄。左肺野纹理增多，小叶间隔增厚，上叶为著。左肺上叶纵隔旁可见索条状密度增高影。余左肺野可见类结节状影(图5-17、24)，边缘模糊。左侧胸膜(含叶间胸膜)略示增厚。右肺野小叶间隔亦略厚。右侧胸膜(含叶间胸膜)略厚。左侧胸腔内示弧形液体密度影。右侧锁骨上区、纵隔内2R、3A、4R/L、7区、8区及左肺门可见多发肿大淋巴结，部分融合，大者短径约1.5CM，增强扫描可见强化。左锁上示短径不足0.5CM的小淋巴结。所扫肝内见小囊性密度灶。胆囊壁增厚。左肾示一小囊肿。另胸骨、多发胸椎、多发肋骨可见成骨性骨质破坏。右侧肩胛骨局部骨质密度增高；双侧肱骨头、左侧肩胛骨骨质密度略示稀疏。	1.结合临床，左肺癌并左肺门、纵隔淋巴结转移；右侧锁骨上区淋巴结肿大，转移待排；多发骨转移；考虑左肺癌性淋巴管炎2.右肺下叶间隔略示增厚，建议观察3.左肺炎症4.左肺类结节灶，不除外为炎性结节5.双侧胸膜(含叶间胸膜)增厚，左侧较著6.左侧胸腔积液7.肝脏小囊肿；左肾小囊肿8.胆囊炎。</t>
-  </si>
-  <si>
-    <t>左肺上叶,左下肺门</t>
-  </si>
-  <si>
-    <t>1.7CM×2.4CM,2.1CM×1.2CM</t>
-  </si>
-  <si>
-    <t>左肺门、纵隔淋巴结,右侧锁骨上区淋巴结,骨</t>
-  </si>
-  <si>
-    <t>左肺下叶术后缺如，左肺门见高密度吻合器影，残余左肺见索条影，左侧胸膜不均匀增厚，可见强化；左侧膈上淋巴结肿大。左侧胸膜腔内见少量液性密度影，呈包裹性改变。右肺上叶后段胸膜下小结节灶，大小约0.4CM×0.3CM。肝实质密度均匀，肝内胆管略示扩张。胆囊胰脾右肾未见异常。左肾见小囊肿。左侧胸膜示多发结节样增厚伴强化。左侧胸腔见液性密度影。腹腔及腹膜后未见明显肿大淋巴结。	1.左肺癌术后，左侧胸膜及淋巴结转移，少量胸腔积液2.左肺炎症及纤维灶3.肝内胆管扩张4.左肾小囊肿。</t>
-  </si>
-  <si>
-    <t>左侧胸膜及淋巴结</t>
-  </si>
-  <si>
-    <t>左侧乳腺可见弥漫分布的结节样、小片状异常信号区，表现为T1WI等信号，T2WI略高信号，压脂序列高信号，DWI序列高信号，注射对比剂GD-DTPA后呈环形强化，动态增强曲线呈平台型，大者约9MM×11MM，部分病变与胸壁间可见条索相连，左乳皮肤增厚，乳头凹陷。右侧乳腺可见数个强化小结节。所扫左侧腋窝结构紊乱，可见数个大小不等淋巴结，大者直径约6MM。所扫右侧腋窝可见多个小淋巴结。余未见异常。	1.结合临床，左乳癌并左腋窝淋巴结转移，较本院(2014-11-27)MR片好转。2.右乳多发结节灶，考虑良性病变(BI-RADSIII级)，较前变化不著。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌术后，肝转移，较前2016-2-16片增大；右肺结节灶，转移待排2.左肺纤维灶3.胆囊炎。右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺可见少许条索状密度增高影。右肺上叶可见一结节灶，直径约0.6CM，边界清。纵隔内未见肿大淋巴结。肝脏实质内可见多发低密度肿块，大者直径约3.5CM，边缘模糊，轻度强化。胆囊充盈可，壁示增厚。胰、脾及扫描野内双肾未见异常。腹腔腹膜后未见肿大淋巴结。	</t>
-  </si>
-  <si>
-    <t>右乳腺体内、皮肤区、右胸壁、右腋窝及扫描野内右颈根部可见多发软组织密度灶，边缘毛糙，增强后呈不均质明显强化，部分相互融合，右腋窝者局部可见溃疡形成。右侧胸壁及右上臂软组织肿胀。左乳未见异常。左侧腋窝、双侧内乳区、气管右旁可见增大淋巴结，大者短径不足1.0CM。双肺内可见散在类圆形结节灶，边界较清晰，大者直径约0.6CM。甲状腺体积增大，局部可见低密度灶及钙化灶。右侧胸腔示少许液性密度影，双侧胸膜略增厚。扫描野内肝脏实质密度减低。胆囊充盈可，壁略厚。右侧锁骨呈内固定术后改变。右侧部分肋骨密度欠均。	1.右乳癌侵及皮肤及胸壁并右侧胸壁转移、右腋窝及右颈根部淋巴结转移治疗后，较前(2016-5-20)部分好转，部分变化不著；双肺转移，较前好转2.左侧腋窝、双侧内乳区、纵隔增大淋巴结，部分缩小，部分变化不著3.甲状腺增大伴低密度灶及钙化灶，考虑变化不著4.脂肪肝5.右侧胸腔少量积液6.右侧锁骨术后改变。</t>
-  </si>
-  <si>
-    <t>右肺门区见不规则软组织密度肿块影，增强扫描可见不均匀强化，远端与不张实变的肺组织分界不清，大小不易测量；右侧胸腔见大量液体密度影，右肺全肺不张，右侧胸膜增厚并可见强化。左肺野清晰。纵隔、膈上前组及中组可见肿大淋巴结，大者短径约1.0CM。右侧锁骨上见小淋巴结，大者短径约0.5CM。右侧胸腔内可见引流管影.肝实质内平扫未见明显异常，增强扫描可见多发异常强化区，肝左叶可见团片状强化，肝尾状叶及右叶病灶可见结节样向心性充填样强化。另肝右叶近包膜下(6-70)见一类圆形低密度灶，直径约1.0CM，边缘略模糊。双侧肾上腺及双肾未见明显异常。腹腔腹膜后未见肿大淋巴结。脑实质内未见异常密度影，脑沟、脑池未见增宽或狭窄，脑室大小、形态，位置正常，中线结构居中。T9椎体内可见一类圆形骨质稀疏区。	1.结合临床，右肺癌，右肺全肺不张，较前2016-8-16不易比较；纵隔、膈上淋巴结转移，右侧锁骨上淋巴结肿大，较前变化不著。2.右侧胸腔大量积液，右侧胸腔引流术后改变；右侧胸膜转移，变化不著。3.肝脏血管瘤(多发)。4.肝右叶低密度灶，较前变化不著，建议观察。5.颅脑扫描未见明显异常。6.T9椎体内骨质稀疏，考虑转移，较前略增大。</t>
-  </si>
-  <si>
-    <t>右侧胸膜,纵隔、膈上淋巴结,T9椎体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.左肺上叶癌，左侧胸膜转移，左肺门、纵隔淋巴结转移，骨转移：较前(2016-8-25)均好转2.左侧胸腔积液，较前减少3.前纵隔占位，不除外胸腺囊肿，变化不著；另胸壁后心包前低密度灶，请结合临床。左肺上叶示一不规则软组织密度灶，大小约1.3CM×1.8CM，边缘分叶，可见强化。左侧胸膜及叶间胸膜示多发结节灶，可见强化。左侧胸腔示液体密度影。左肺门、纵隔内示数个肿大淋巴结，大者短径约0.9CM。前纵隔胸腺区示类囊性密度灶，短径约2.0CM，边界清，无强化。另胸壁后心包前见团片状低密度影。左侧第七后肋呈溶骨性骨质破坏，局部形成软组织密度肿块。	</t>
-  </si>
-  <si>
-    <t>左肺门周围可见不规则软组织密度肿块影，约3.2CM×4.6CM，增强扫描呈明显不均匀强化，与其远端不张的肺组织、肺门淋巴结、纵隔内软组织及心包分界不清。右肺上叶近胸膜下示类磨玻璃密度灶。双侧胸膜及叶间胸膜上可见多发类结节灶，大者长径约0.6CM。纵隔内2R、4R、4L、5、6、7、8区示多发融合的淋巴结影，大者短径约2.0CM。心包内及左胸腔内可见液性密度影。肝脏大小形态未见异常，肝实质内可见数个囊性低密度灶，边界清，增强扫描无强化。左肾示斑片状低密度灶。另双肾内示小囊性密度灶。胰尾部示低密度影。胆囊、脾、左肾上腺未见异常，右肾上腺示一类结节灶，长径约3.6CM。腹腔内示短径不足1.0CM淋巴结。腹膜后未见肿大淋巴结影。部分椎骨密度略增高。	1.左肺中心型肺癌累及肺门、纵隔及心包、阻塞性肺不张、肺炎治疗后，较前(2016-10-27)变化不著；双侧胸膜多发结节灶，考虑转移，部分略缩小，部分变化不著；纵隔淋巴结转移，较前略增大；右肾上腺转移，变化不著2.肝囊肿；双肾囊肿；左肾低密度灶，胰腺低密度灶，变化不著，建议观察3.心包、左胸腔少量积液，略减少4.右肺类磨玻璃密度灶，建议观察5.部分椎骨密度略增高，较前密度增高，建议观察。</t>
-  </si>
-  <si>
-    <t>3.2CM×4.6CM</t>
-  </si>
-  <si>
-    <t>双侧胸膜,右肾上腺,纵隔淋巴结</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，直肠癌术后，双肺转移瘤，较前2016-7-21示进展2.双肾低密度灶，较前(2016-3-15)部分变化不著，部分略示饱满，建议观察除外转移；双肾囊肿3.双侧胸膜略增厚，变化不著4.甲状腺低密度灶，变化不著5.脂肪肝。直肠术后，术区示高密度吻合器影，壁未见明显增厚。盆腔及双侧腹股沟未见明显增大淋巴结。肝实质密度减低。双肾内示低密度灶，边缘模糊，另双肾内示囊性密度灶。腹腔及腹膜后未见增大淋巴结。双肺近胸膜下示多个结节灶及肿块，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约3.6CM(纵隔窗)，内示小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。甲状腺右叶见低密度灶，边缘较清晰。	</t>
-  </si>
-  <si>
-    <t>双肺,双肾</t>
-  </si>
-  <si>
-    <t>左乳呈少量腺体型。其外上象限不规则肿块影，大小约4.0CM×4.5CM，其密度增高、不均匀，边缘毛糙、不整。乳头无凹陷，皮肤无增厚。腋窝可见一直径约1.2CM肿大淋巴结影。	左乳癌并同侧腋窝淋巴结转移。</t>
-  </si>
-  <si>
-    <t>4.0CM×4.5CM</t>
-  </si>
-  <si>
-    <t>同侧腋窝淋巴结</t>
-  </si>
-  <si>
-    <t xml:space="preserve">对比之前PET/CT(2016-12-09)：1.结合病史，右乳癌术后，双肺多发转移，左腋窝、纵隔、腹腔及腹膜后多发淋巴结转移治疗后，与前PET/CT相比，病灶明显缩小，代谢降低，现未见明显异常代谢，病情明显好转。2.右肺慢性炎症及局限性纤维变。3.右侧少量胸腔积液。4.考虑子宫肌瘤；子宫局部高代谢灶，建议B超检查。5.双侧扁桃体炎症；双颈部炎性淋巴结。注射示踪剂后60MMIN显像，见大脑形态如常，皮层各叶放射性分布均匀。中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，两侧小脑对称。双侧扁桃体结节状放射性浓聚，最高SUV7.2。鼻咽、下咽及喉部未见异常放射性浓聚。双侧颈中深示轻度放射性摄取增高淋巴结，大者短径约1.0CM，最高SUV2.8。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。右乳术后缺如，右腋窝结构紊乱，右侧胸壁未见显著增厚及明显异常放射性摄取。双侧内乳区淋巴结未见显著增大及明显异常放射性摄取。原PET/CT(2016-12-09)所示双肺多发结节灶，现显著缩小，放射性摄取降低，现未见明显异常放射性摄取。余右肺前胸膜下示斑片状密度增高影，内可见支气管充气征象，可见轻度放射性摄取，最高SUV1.8，右侧胸腔内见少量液性密度影。原PET/CT(2016-12-09)所示左侧腋窝、纵隔内4R、7区、左肺门、门腔静脉间、腹膜后大血管周围多发放射性摄取增高淋巴结，现显著缩小，放射性摄取降低，现未见明显异常放射性摄取。胃壁未示显著增厚及明显异常放射性摄取。肝内未见明显异常放射性摄取。胆囊大小正常，密度均匀。胰腺形态放射性分布尚好，胰管不扩张。脾轻度显影，放射性分布欠均匀。两侧肾脏显影可，肾实质密度均匀。两侧肾上腺显影大致正常。腹水征阴性。盆腔内膀胱放射性浓聚如常。双侧腹股沟淋巴结未见显著增大及明显异常放射性摄取。子宫局部结节状突出，局部结节状放射性摄取增高，摄取灶长径约1.6CM，最高SUV5.4。两侧附件区未见异常放射性摄取。脊柱诸椎体放射性分布欠均匀。	</t>
-  </si>
-  <si>
-    <t>右肺上叶术后，术区可见金属吻合钉，右肺野内见多发条索状密度增高影。双肺野内见数个类结节灶(图3-31、41、57、32)，大者直径约0.6CM。双肺内多发过度透光囊泡影，纵隔内可见多发肿大淋巴结影，大者短径不足1.0CM。左肺上叶见一磨玻璃密度灶(图3-25)，直径约0.5CM。右侧胸腔内见液性密度影，右侧胸膜增厚。肝内见数个低密度灶，边界尚清，大者直径约2.1CM，增强扫描动脉期边缘结节状强化，延迟后造影剂向心性充填。另于肝实质内见多发低密度灶，部分边界较清，部分边缘模糊，大者直径约1.0CM。胆囊充盈可，壁增厚并强化。腹腔及腹膜后未见明确肿大淋巴结。部分椎体及其附件可见高密度影，骨质密度增高。	1.结合临床，右肺癌术后改变，右肺炎症及纤维灶；纵隔淋巴结肿大；双肺气肿2.双肺多发结节灶，建议结合前片定性，不除外转移3.右侧胸腔少量积液；右侧胸膜增厚4.肝血管瘤5.肝内多发低密度灶，部分为囊肿，部分建议进一步检查6.胆囊炎7.部分椎体及附件骨质密度增高，建议进一步检查8.左肺上叶膜玻璃密度灶，建议观察。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，左肺癌并阻塞性肺不张及炎症，较前2015-11-18好转2.左肺门、纵隔淋巴结转移，右肺门淋巴结肿大，不除外转移，较前好转3.左侧第4肋陈旧性骨折。左肺下叶示软组织肿块影，部分支气管狭窄，远端见少许实变肺组织及斑片状密度增高影，增强扫描病变呈较明显强化，直径约1.6CM。余双侧肺野内可见多发囊泡状过度充气区。纵隔内气管周围、腔静脉后气管前间隙、主肺动脉窗区、隆突下、双肺门示多发增大淋巴结，大者短径约2.6CM。左侧第4肋示陈旧性骨折线形成。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.左肺上叶癌，左侧胸膜转移，左肺门、纵隔淋巴结转移，较前(2016-9-28)均好转；骨转移，较前变化不著2.左侧胸腔积液，较前减少。左肺上叶示一不规则软组织密度灶，大小约1.3CM×1.7CM，边缘分叶，可见强化。左侧胸膜及叶间胸膜示多发结节灶，可见强化。左侧胸腔示液体密度影。左肺门、纵隔内示数个肿大淋巴结，大者短径约0.6CM。左侧第七后肋呈溶骨性骨质破坏，局部形成软组织密度肿块。	</t>
-  </si>
-  <si>
-    <t>1.3CM×1.7CM</t>
-  </si>
-  <si>
-    <t>右顶叶上矢状窦右旁见一类圆形异常信号，表现为T1WI等信号，T2WI略高信号，压水像及DWI为等信号，增强扫描可见明显强化，大小约0.3CM×0.3CM，于冠状位可见结节与脑膜关系密切，周围未见明显水肿带。余脑实质增强前后未见异常信号。脑室系统无扩张。中线结构居中。腰椎生理弯曲略变直，部分椎体前缘见棘样突起，腰椎L1~3椎体可见结节状或斑片状长T1短T2信号，压脂序列呈低、高信号，边缘模糊。所扫腰骶椎椎管内未见异常占位性病灶。	1.结合乳癌病史，右顶叶转移瘤，较本院(2016-07-26)MR片好转；腰椎L1~3转移，较前进展。2.腰椎退行性变。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，直肠癌术后；双肺转移瘤，较前2015-9-17部分增大，部分变化不著2.双肾低密度灶，较前无明显变化，建议继续观察或结合MR检查3.肝内钙化灶4.双侧胸膜略增厚，变化不著5.右侧甲状腺低密度灶，建议观察。双肺近胸膜下示多个结节灶，部分边缘分叶、毛糙，牵拉邻近胸膜，大者位于左肺下叶，长径约2.4CM，内示斑点状致密影及小空泡影，增强呈不均质强化。双侧肺门及纵隔未见增大淋巴结。双侧胸膜略增厚。双侧胸腔未见积液征象。右侧甲状腺见低密度灶，边缘较清晰。肝内见点状钙化灶。胆囊充盈可，壁增厚。双肾见多发低密度灶，边界较清，部分密度略高。胰腺、脾及肾上腺形态、大小、密度未见异常。肠系膜区及腹膜后示短径不足0.5CM小淋巴结。直肠术后，吻合口未见增厚及异常强化。膀胱、前列腺及双侧精囊腺未见异常。盆腔内未见肿大淋巴结及积液。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合临床，右乳癌较前(2016-4-27)进展；双肺转移较前进展；肝转移变化不著；左肺门及纵隔淋巴结转移较前进展；右侧内乳区饱满，变化不著；脑转移瘤较前明显进展；脑膜异常强化，不除外转移，建议MRI；脑室系统较前示变窄2.左胸膜局限性增厚，局部钙化，变化不著3.颈部小淋巴结。右侧乳腺乳头上方见不规则软组织密度肿块影，约9.4CM×7.9CM，边缘分叶，局部与周围腺体及乳头区皮肤分界不清，胸肌间脂肪间隙模糊，增强扫描见显著不均匀强化，其内见片状低密度影。左乳未见异常密度灶。双侧腋窝见多发肿大或小淋巴结，大者短径约0.9CM。右侧内乳区显示饱满。左肺门及纵隔内见肿大淋巴结影，大者短径约1.5CM。双肺野散在分布大小不等结节灶，大者直径约1.7CM，边缘清晰，局部与胸膜及纵隔关系密切，增强扫描可见强化。左胸膜增厚，局部呈结节样；局部见多发钙化灶并致局部肋骨欠规则。双侧颈动脉鞘区可见多发小淋巴结，短径不足1.0CM。肝实质内见多个低密度灶，大者直径约0.3CM，边缘尚清晰，增强扫描边缘强化显著。胆囊充盈可，壁不厚。胰腺、脾、双侧肾上腺及扫描野内双肾未见明确异常。脑实质内可见多发结节状斑片状强化灶，周围可见低密度水肿带，部分脑膜示异常强化。脑室系统略示变窄。	</t>
-  </si>
-  <si>
-    <t>9.4CM×7.9CM</t>
-  </si>
-  <si>
-    <t>双肺,肝,左肺门及纵隔淋巴结,脑,脑膜</t>
-  </si>
-  <si>
-    <t>右肺下叶切除术后，右下肺门区见斑片状软组织密度影，边缘欠清，范围约2.5CM×2.6CM，增强扫描可见轻度强化。右肺下叶见索条影。左肺清晰，未见结节及肿块。余气管及段以上支气管管腔通畅。右侧胸腔见少量液性密度影。右肺门、纵隔内2R、3A、4R、6、7区见多发增大淋巴结，部分融合成团，大者大小约为5.0CM×3.7CM，位于4R区。扫描野内肝脏密度普遍性降低，肝右叶见一类圆形强化结节灶，边界清，直径约0.7CM。门腔间隙示增大淋巴结，短径约0.8CM。左前下胸壁软组织内示梭形脂肪样密度影，边界清。骨窗示：左侧肩胛骨局部骨质结节状稀疏。	1.结合病史，右肺癌术后，右下肺门区小片状软组织密度影，较前(2015-06-08)增大，复发可能大，请结合支气管镜检查；右肺门、纵隔多发淋巴结转移，较前进展2.右肺纤维灶，右侧少量胸腔积液，变化不著。3.脂肪肝；肝血管瘤，变化不著。4.左胸壁脂肪瘤，变化不著。5.左侧肩胛骨局部骨质稀疏，建议进一步检查。</t>
-  </si>
-  <si>
-    <t>右肺门、纵隔多发淋巴结</t>
-  </si>
-  <si>
-    <t>右乳术后，前胸壁软组织略增厚，未见明显异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。左肺门、纵隔内主肺动脉窗区可见肿大淋巴结，直径约1.7CM。右肺门淋巴结略增大，短径约0.8CM。左肺上叶支气管受压狭窄，远端肺野近纵隔旁可见带状密度增高影，另双肺内见斑片状密度增高影，右肺下叶为著。余双肺散在小结节灶，大者直径约0.4CM。双侧胸膜略增厚。甲状腺示斑片状低密度灶。肝内见囊性密度灶及斑片状致密影。胆囊壁增厚。右肾示小囊性密度灶。右肾上腺可见结节灶，直径约0.8CM，密度较低，强化不明显。	1.结合临床，右乳癌术后2.左肺门、纵隔淋巴结转移，较前(2015-6-30)变化不著3.双肺炎症，较前好转；双侧胸膜略增厚4.双肺小结节灶，变化不著5.肝囊肿、钙化灶6.右肾囊肿7.右肾上腺结节灶，考虑腺瘤，变化不著8.甲状腺低密度灶，变化不著。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合病史，肝癌伴肝内转移治疗后，部分较2014-10-07片变化不著；肝左内叶近膈顶处病灶较前增大，邻近下腔静脉受压；肝内多发强化结节，部分较前增大2.双肺多发转移，较前进展3.双肺局限性肺气肿，肺大泡；双肺纤维灶4.右侧叶间胸膜结节灶，较前变化不著5.肝小囊肿6.左侧肾上腺饱满，较前变化不著。肝脏体积增大，形态欠规则，实质内见多发混杂密度结节及肿块影，边界欠清，部分可见假包膜形成，大者截面积约12.0CM×11.2CM，部分其内示高密度碘油影沉积；增强扫描呈中度不均匀强化，大者其内可见低密度坏死区，延迟后病灶部分可见廓清。肝左内叶近膈顶处病灶大小约6.5CM×5.3CM，邻近下腔静脉受压变窄。余肝内见数个动脉期较显著强化灶，门脉期和延迟期廓清迅速，大者长径约4.5CM。肝内另见小囊性密度灶，大者长径不足0.5CM，界清，无强化。门脉主干及左支显示尚可，门脉右前支示受压显著变窄，右后支显示欠清。胆囊充盈不佳，壁略厚伴强化。胰腺、脾、双肾及右侧肾上腺未见明确异常。左侧肾上腺略示饱满。腹腔及腹膜后未见确切增大淋巴结。双肺内示多发大小不一的结节灶，大者长径约0.9CM。双肺内胸膜下见多发泡状过度透亮区及条索状密度增高影，局部肺大泡形成。双肺门及纵隔未见确切增大淋巴结。纵隔内冠状动脉见条形钙化。右侧叶间胸膜增厚局部示类结节灶。双侧胸腔未见液性密度影。	</t>
-  </si>
-  <si>
-    <t>12.0CM×11.2CM</t>
-  </si>
-  <si>
-    <t>右乳术后缺如，部分胸肌尚存，术区未见异常强化灶。右侧腋窝结构紊乱，局部示一囊性密度灶，直径约2.4CM，可见环形强化。左乳及左侧腋窝未见异常。双肺野示多发结节灶，边缘较清，大者直径约0.3CM。右肺上叶及左肺下叶可见条索状密度增高影。双肺门及纵隔未见增大淋巴结。肝实质内示数个低密度灶，边缘较模糊，可见轻度强化，大者直径约0.8CM。胆囊充盈可，壁不厚。胰、脾、双肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见增大淋巴结。膀胱充盈可，壁不厚。子宫及双侧附件未见异常。子宫及直肠陷窝区可见少量液性密度影。盆腔内未见肿大淋巴结。鼻咽、口咽及喉形态可，诸壁不厚。甲状腺形态大小密度可。双颈部肌间隙清晰，未见肿大淋巴结。骨窗示：部分胸腰椎及附件、部分肋骨、骶椎、右侧髂骨、双侧坐骨可见成骨性骨质破坏。	1.结合临床，右乳癌术后改变，双肺转移，较前2014-4-15略好转；肝转移，部分较前好转，部分变化不著；多发骨转移2.右侧腋窝囊性密度灶，较前变化不著3.部分胸腰椎及附件骨质密度增高，请结合其他检查4.盆腔少量积液5.颈部扫描未见异常。</t>
-  </si>
-  <si>
-    <t>双肺,肝,胸腰椎及附件,肋骨,骶椎,右侧髂骨,双侧坐骨,骨</t>
-  </si>
-  <si>
-    <t>左乳内示多发结节灶，边缘毛糙，与周围腺体分界欠清，增强扫描呈不均质较明显强化，大者最大截面约1.8CM×1.2CM，部分内示斑片状致密影，左乳皮肤增厚，皮下脂肪略模糊。右乳内见斑点状致密影。左腋窝示增大淋巴结，大者短径约0.7CM，边缘毛糙，与同侧胸大肌分界不清。右腋窝未见明显增大淋巴结。双肺内见多发小类结节灶及磨玻璃样密度增高影，以左肺下叶为著，部分边缘欠清。纵隔内主动脉弓旁及左肺门见增大淋巴结，短径约0.6CM。双侧胸腔未见积液征象。扫描野内肝脏示小囊性低密度灶，直径不足0.4CM。鼻咽、口咽、喉咽壁未见明显增厚。甲状腺右叶内示斑片状密度灶。双侧颈深上组、中组、下组、左锁骨上、颌下及左侧颈后三角区示增大淋巴结，大者短径约0.9CM。扫描范围内诸骨质未见明显破坏。	1.结合临床，左乳癌治疗后，较前(2014-10-20)略好转2.左腋窝淋巴结肿大，考虑转移可能性大，较前好转；双侧颈部、左锁骨上淋巴结肿大，部分好转、部分略增大3.右乳钙化灶4.双肺类结节灶，建议观察5.考虑肝囊肿6.甲状腺右叶低密度灶，请结合其它检查。</t>
-  </si>
-  <si>
-    <t>1.8CM×1.2CM</t>
-  </si>
-  <si>
-    <t>左肺下叶近肺门区示一不规则低密度肿块，大小约3.9CM×4.5CM，左肺下叶支气管截断，远端可见实变不张肺组织，其内密度不均，可见片状低密度影，增强扫描病变呈较显著不均匀强化，左下肺静脉包绕其中；左侧叶间胸膜显示欠清。右肺中叶示一小结节灶，直径约0.4CM，密度较高，边界清。余双肺野示少许条索影。双锁上、纵隔及左肺门示多发肿大淋巴结，部分融合，大者短径约4.3CM，与肺动脉关系密切。左侧胸腔及心包示少量液体密度影。肝内胆管略有扩张。胆胰脾右肾上腺未见异常。左肾上腺略示饱满。双肾均可见囊性密度灶。腹腔腹膜后未见明显肿大淋巴结。脑实质密度均匀。	1.结合临床，左肺下叶癌伴阻塞性肺不张；左肺门、纵隔及双侧锁上淋巴结转移2.右肺小结节灶，建议观察3.双肺少许纤维灶4.左侧胸腔少量积液；心包积液5.左肾上腺略饱满，建议观察6.双肾囊肿7.颅脑扫描未见明显异常。</t>
-  </si>
-  <si>
-    <t>3.9CM×4.5CM</t>
-  </si>
-  <si>
-    <t>左肺门、纵隔及双侧锁上淋巴结</t>
-  </si>
-  <si>
-    <t>右乳术后，术区壁未见增厚及异常强化。纵隔内右上气管、血管前间隙、隆突下、食管旁见增大淋巴结，大者短径约0.8CM。双锁骨上及左侧腋窝示小淋巴结，大者短径不足0.5CM。右侧腋窝未见增大淋巴结。双肺见多发小斑片影及类结节灶，大者长径约1.0CM，部分与邻近胸膜分界不清。余双肺内示条片密度增高影，局部牵拉邻近胸膜。双侧胸膜略增厚，左侧胸膜见少许斑点状钙化灶。双侧胸腔未见积液征象。肝脏体积略缩小，内见多发结节灶，融合成团，大小不易测量，增强后呈不均匀强化。门脉左支充盈欠佳。腹腔内贲门旁、肝胃韧带区、肝十二指肠韧带区、腹膜后腹主动脉旁见多发增大淋巴结，大者短径约0.8CM，部分与胰腺分界欠清。膈上后组见短径不足0.5CM小淋巴结。胆囊充盈不良，壁增厚并见强化。左肾示囊性低密度灶，大者长径约0.7CM，部分边界欠清。脾、双侧肾上腺及右肾未见异常。腹腔内示液性密度影。大网膜、腹膜、肠系膜略增厚。胸骨、右侧肱骨、肋骨、胸腰椎示多发溶骨性骨质破坏，局部形成软组织肿块。	1.结合临床，右乳癌术后；纵隔淋巴结肿大，较前(2015-2-24)好转，腹腔及腹膜后淋巴结肿大，部分好转，部分变化不著；双肺转移，较前好转；肝多发转移，大部分较前缩小，部分变化不著；骨多发转移伴局部软组织肿块形成，较前部分成骨性成分增多，部分软组织肿块减小，余变化不著。2.胆囊炎；考虑左肾囊肿。3.腹膜、网膜、肠系膜略增厚，少量腹水，变化不著。4.门脉左支充盈欠佳，请结合其他检查。5.考虑双肺炎症，双侧胸膜略增厚并左侧胸膜钙化灶。</t>
-  </si>
-  <si>
-    <t>右乳术后，术区未见增厚及异常强化征象；右腋窝结构紊乱。左乳未见异常。左腋窝示小淋巴结，短径不足0.5CM。右肺上叶可见团片状密度增高影。另于右肺上叶及中叶见少许条索状密度增高影。左肺下叶见一结节灶，呈磨玻璃密度，直径约0.8CM。左侧肺野较清晰。纵隔内气管前腔静脉后见肿大淋巴结，短径约0.8CM。肝实质内示多发结节灶，边缘欠清，大者直径不足1.0CM。胆胰脾双肾上腺右肾形态、密度未见明显异常。左肾示囊性密度灶，未见强化。腹腔及腹膜后未见明显增大淋巴结。	1.结合临床，右乳癌术后，肺转移微波消融术后改变，范围较前(2016-06-09)基本变化不著；左肺结节灶，考虑转移2.纵隔淋巴结肿大，较前变化不著3.肝内多发低密度灶，考虑转移，基本变化不著4.左肾囊肿。</t>
-  </si>
-  <si>
-    <t>左肺,肝,肺</t>
-  </si>
-  <si>
-    <t>脑干、双侧大脑及小脑半球见多发大小不等的结节样异常信号，表现为T1WI低、略低信号，T2WI略高、高信号，压水序列高信号，DWI序列低、高信号，增强扫描呈结节样、环形或不均匀强化，大者约1.3CM×2.1CM，部分病变周围脑白质见小片状或片状长T2信号水肿带，四脑室及双侧侧脑室略受压变形。中线结构居中。左上颌窦可见小片状长T2信号区。余未见异常。	1.结合乳癌病史，脑多发转移瘤，较本院(2015-11-04)MR片略示好转。2.左上颌窦炎。</t>
-  </si>
-  <si>
-    <t>脑干、双侧大脑及小脑半球,脑</t>
-  </si>
-  <si>
-    <t>右肺中叶近肺门处示不规则软组织密度影，远侧肺组织示实变征象，周围多发多发条索状及斑片状密度增高影，与周围组织关系密切，增强扫描示中度强化。右肺中叶外侧段见一磨玻璃密度结节；另右肺中叶示一类圆形结节灶(图3-38)，直径约0.5CM，边界清。余双肺野内散在囊泡状过度透光灶。右肺门及纵隔示多发肿大淋巴结，部分融合成团，大者位于右肺门，与肺门区病变分界不清。右侧胸腔示少量液体密度影。肝脏示低密度影，边界清晰，增强扫描未见强化，余肝实质未见异常密度影。胆囊、胰腺、脾、双肾、未见异常，右侧肾上腺外支见一结节灶，直径约0.8CM，边缘光滑，密度均匀。腹腔腹膜后未见肿大淋巴结影。	1.右肺癌，较前(2016-12-21)片不易比较；右肺炎症及肺不张较前加重；右肺门及纵隔淋巴结转移，部分不易比较，考虑变化不著。2.双肺气肿。3.右肺磨玻璃结节(考虑良性)，变化不著；右肺中叶新发结节灶，建议密切观察除外转移。4.肝囊肿。5.右肾上腺小结节，考虑腺瘤可能性大，变化不著。6.右侧胸腔少量积液。</t>
-  </si>
-  <si>
-    <t>右肺门及纵隔淋巴结,右肺中叶</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.结合病史，右肺癌术后复发，较前(2017-1-11)增大；右肺门、纵隔、右锁上淋巴结转移，较前部分增大，部分变化不著；双颈部及左侧锁骨上淋巴结转移；双肺转移，较前进展；腹腔淋巴结肿大，考虑转移，较前进展2.双肺炎症，局部略加重；右侧少量胸腔积液，基本变化不著，心包积液，略增多；右侧胸膜增厚，变化不著3.左胸壁脂肪瘤，变化不著4.肝左叶低密度灶，请结合临床5.左侧肩胛骨局部骨质稀疏，变化不著。右肺下叶切除术后，右下肺门区见软组织肿块影，截面约5.5CM×5.3CM。双肺内见多发结节灶，大者短径约3.0CM。双肺近纵隔周围见多发斑片状密度增高影。右侧胸腔见少量液性密度影，右侧胸膜增厚。双颈部、双锁上、右肺门、纵隔、腹腔见多发增大淋巴结，部分融合成团。心包腔内见少量液性密度影。肝左叶见低密度结节。左前下胸壁软组织内示梭形脂肪样密度影，边界清。骨窗示：左侧肩胛骨局部骨质结节状稀疏。	</t>
-  </si>
-  <si>
-    <t>右肺门、纵隔、右锁上淋巴结,双颈部及左侧锁骨上淋巴结,双肺,腹腔淋巴结</t>
-  </si>
-  <si>
-    <t>右肺下叶支气管局部狭窄截断，周围示软组织密度肿块影，与周围不张实变的肺组织及右肺门肿大淋巴结分界不清，最大截面约3.7CM×2.9CM，增强后呈不均匀明显强化，病变周围支气管腔内见软组织密度影，延支气管分布。余右肺野略示小结节影，密度较淡，直径不足0.5CM。左肺野较清晰。右侧胸膜增厚。右侧胸腔及心包内示少量液体密度影。右侧乳腺术后缺如，术区未见明显增厚及异常强化。左乳未见异常。双侧腋窝、内乳区及锁骨上区未见明显肿大淋巴结。所扫肝右叶示颗粒状钙化密度影。左侧大脑内示多发结节、肿块影，大者截面约3.0CM×3.6CM，密度不均匀，周围示大片无强化的低密度水肿带，邻近侧脑室局部略示受压变形，增强后病灶呈环形明显强化。中线结构略尚居中。左侧上颌窦内示液体密度影。骨窗：胸骨柄右侧、胸骨下段局部骨质密度不均匀增高。	1.结合临床，右侧中心型肺癌并阻塞性肺不张治疗后，不张较前(2014-11-24)变化不著；右肺门淋巴结转移，变化不著；右胸膜转移；骨转移，变化不著；脑转移，较前大小变化不著2.右侧胸腔及心包积液，较前减少3.右肺结节，较前变化不著4.右侧乳腺术后改变5.肝内钙化灶6.左上颌窦炎症。</t>
-  </si>
-  <si>
-    <t>3.7CM×2.9CM</t>
-  </si>
-  <si>
-    <t>右肺门淋巴结,右胸膜,骨,脑</t>
-  </si>
-  <si>
-    <t>右乳术后，前胸壁近胸骨旁软组织增厚，并见较显著强化。右侧腋窝结构紊乱。右侧内乳区、纵隔内右上气管旁、右侧锁骨上见稍大或增大淋巴结，部分融合，大者短径约1.3CM，增强后部分强化较显著。右肺见少许索条影。双侧胸腔未见积液征象。肝内见多发低密度结节灶，边缘欠清晰或模糊，大者长径约1.5CM，增强后部分边缘似见强化。扫描野内右肾见直径不足0.5CM小囊性低密度结节灶，边缘清晰，未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔及腹膜后未见增大淋巴结。鼻咽、口咽、喉及下咽未见异常。左侧上颌窦粘膜略增厚。双侧颈动脉鞘区见短径不足0.5CM小淋巴结。双侧甲状腺大小密度形态可。1.结合临床，右乳癌术后，右侧胸壁复发；右侧锁骨上淋巴结转移；右侧内乳区淋巴结肿大，考虑转移2.右肺纤维灶3.肝内低密度灶，部分转移可能性大，建议观察或MRI检查4.右肾囊肿5.左侧上颌窦炎</t>
-  </si>
-  <si>
-    <t>肝,右侧锁骨上淋巴结,右侧内乳区淋巴结</t>
-  </si>
-  <si>
-    <t>右乳示多发软组织密度结节及肿块，部分融合，大者截面约3.7CM×3.2CM，边缘分叶，与皮肤关系密切，增强扫描可见较显著不均匀强化。右腋窝示强化小淋巴结，大者短径约0.5CM。左乳未见异常。左腋窝及锁上未见明显肿大淋巴结。纵隔内4R/L及7区示多个略增大淋巴结，大者短径约0.7CM。双侧胸腔示少量液体密度影，左侧较著，左肺下叶部分受压膨胀不全。余双肺示少许条索影。左侧胸膜略厚。肝内示多发低密度结节及肿块，大者截面约5.8CM×5.1CM，边缘模糊，增强扫描可见不均匀强化。胆胰脾肾上腺及双肾未见异常。腹腔腹膜后未见明显肿大淋巴结。脑实质密度均匀。多发胸腰椎、肋骨、左侧肩胛骨及胸骨示骨质破坏。1.右乳癌，肝转移，多发骨转移2.右腋窝小淋巴结；纵隔淋巴结略大3.左侧胸膜略厚，双侧胸腔少量积液并左肺部分不张4.双肺纤维灶5.颅脑扫描未见明显异常</t>
-  </si>
-  <si>
-    <t>3.7CM×3.2CM</t>
-  </si>
-  <si>
-    <t>肝,多发胸腰椎、肋骨、左侧肩胛骨及胸骨</t>
-  </si>
-  <si>
-    <t>左肺门增大，见肿块影，大小约为4.0CM×4.2CM，CT值约29HU，左肺支气管受压变窄，增强扫描三期CT值约49HU、63HU、65HU。左肺下叶见斑片灶。胸膜未见增厚改变。两胸腔无积液征象。纵隔淋巴结增大，大者短径约2.9CM。右锁骨上淋巴结增大，大者短径约1.9CM。左肺动脉局部显示不清。左室心肌增厚。考虑左肺中央型肺癌伴纵隔及右锁骨上淋巴结转移，左肺动脉受累，左肺下叶阻塞性肺炎或肺不张。</t>
-  </si>
-  <si>
-    <t>4.0CM×4.2CM</t>
-  </si>
-  <si>
-    <t>左肺上叶近纵隔旁见团片状软组织影，最大截面大小约为5.78CM×3.56CM，CT值约35HU；右肺上叶后段可见一结节，径约0.5CM；双肺纵隔旁及胸膜下见多个条索状及斑片状高密度影。腔静脉间隙、主动脉弓旁、气管隆突上纵隔及左肺门多发结节状软组织影，密度欠均匀，见小斑片状高密度影，部分融合。双侧胸膜略增厚。心影不大，大血管壁可见钙化影，心包增厚。1.左肺上叶肺癌并左肺门及纵隔淋巴结转移，较前片2013-05-31部分进展；2.右肺上叶小结节，与前相仿；3.双肺纵隔旁及胸膜下放射性肺炎，较前好转；4.双侧胸膜略厚，心包增厚。</t>
-  </si>
-  <si>
-    <t>5.78CM×3.56CM</t>
-  </si>
-  <si>
-    <t>右肺下叶周围型肺癌，双肺及纵隔淋巴结多发转移。右肺下叶后基底段团块影，大小约4.02CM×5.92CM，CT值约38HU，远端支气管截断；双肺多发粟粒影、结节影；双肺纹理增强，双侧支气管未见确切狭窄征象。两肺门大小、形态未见明显异常。纵隔及右侧锁骨上多发肿大淋巴结，大小约3.92CM，心脏、血管未见异常。双侧胸膜未见增厚，未见双侧胸腔积液征象。</t>
-  </si>
-  <si>
-    <t>4.02CM×5.92CM</t>
-  </si>
-  <si>
-    <t>1.左肺癌术后改变，左肺上野近胸膜处较大结节灶，转移瘤待除外，请与前片比较；2.双肺多发结节灶(部分钙化)，考虑为陈旧性病变，双侧胸膜增厚；3.慢性支气管炎、伴右肺中叶及左肺上叶舌段少许感染；4.纵隔及肺门多发增大淋巴结，转移待除外，请与前片比较或详查；5.食道各段增粗、扩张，请结合临床。左肺上叶体积变小，左肺上野近叶间胸膜处可见较大结节影，边界尚清，大小约2.36CM，CT值约33HU。另见双肺边缘处可见多个大小不等结节影，部分钙化，右肺中叶及左肺上叶舌段见片状高密度影。局部肺野透光度增加。所示气管支气管影未见狭窄。纵隔内及双侧肺门可见多发增大的淋巴结，较大者短径约1.04CM。双侧胸膜增厚，食管各段增粗、扩张。心脏大血管未见异常。</t>
-  </si>
-  <si>
-    <t>纵隔及肺门多发增大淋巴结</t>
-  </si>
-  <si>
-    <t>右肺上叶可见一类圆形结节影，呈浅分叶，密度尚均匀，CT值约为34HU，增强后呈明显均匀强化，动脉期及静脉期CT值分别约为78HU及76HU；病灶边缘不光滑，可见细短毛刺，可见胸膜牵拉；病灶大小约为2.0CM×1.5CM。右肺中叶、左肺上叶及双肺下叶可见多发大小不等小结节影，大者位于右肺下叶，大小约为1.2CM×1.0CM，边缘可见毛刺。双肺上叶可见斑块状、条状高密度影及囊性透光影；双肺下叶可见斑片状密度增高影，边缘模糊。所示气管支气管未见异常扩张；双肺门区未见异常。纵隔内可见多个小淋巴结影，以隆突下最大，短径约为0.8CM；双侧胸腔未见积液征象；主动脉管壁可见多发斑点状钙化影。所示肝脏内可见多发低密度影。1.右肺上叶结节影，考虑为周围型肺癌可能性大，请结合临床；左侧胸膜稍厚；2.右肺中叶、左肺上叶及双肺下叶多发小结节影，考虑为转移瘤，请随诊；3.双肺上叶陈旧病灶，多发肺大泡；双肺下叶炎性病变，请随诊；4.肝脏多发低密度影，请结合腹部检查。</t>
-  </si>
-  <si>
-    <t>右肺中叶,左肺上叶,双肺下叶</t>
-  </si>
-  <si>
-    <t>1.右肺下叶不规则结节；2.双肺散在炎症，右肺为著，右肺间质纤维化；3.双肺上叶陈旧性病变；4.两侧肩胛骨、锁骨、左侧肱骨头、胸骨、部分胸椎及双侧多发肋骨多发转移；5.降主动脉管壁钙化。双肺纹理增强，右肺小叶间隔增厚、紊乱；双肺内见多发斑片状模糊高密度影，以右肺为著。右肺下叶后基底段可见一结节样高密度影，病变大小约为1.2CM×0.9CM，CT值约为22HU。双肺上叶见结节状及索条状高密度影。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。双侧胸膜增厚；两胸腔无积液征象。心脏不大，降主动脉管壁见钙化影。两侧肩胛骨、锁骨、左侧肱骨头、胸骨、部分胸椎及双侧多发肋骨见斑片状高密度影。</t>
-  </si>
-  <si>
-    <t>1.2CM×0.9CM</t>
-  </si>
-  <si>
-    <t>肩胛骨,锁骨,左侧肱骨头,胸骨,胸椎,肋骨</t>
-  </si>
-  <si>
-    <t>右肺上叶尖段支气管闭塞，前段及后段支气管管壁略厚，管腔狭窄，可见团块状稍高密度影，大小约6.5CM×6.5CM，可见浅分叶，边缘可见细短毛刺，CT值约20-35HU，右上支气管受压变窄，增强后扫描呈不均匀强化；右上肺动脉变窄，远端显示欠清，上腔静脉管腔狭窄，其内可疑充盈缺损；右肺中叶、下叶、左舌段可见索条灶，左肺下叶见片状高密度影；左肺下叶近斜裂(40)可见小结节影，径约0.4CM。双肺见多发局限性透亮影。纵隔内可见增大的淋巴结，部分融合，短径约2.6CM；右侧锁骨上淋巴结增大，大者短径约1.2CM。两胸腔无积液征象，右侧胸膜局限性增厚。心包内可见条形液体密度影，大血管未见异常。双侧腋窝内多发稍大淋巴结影，大者短径约0.7CM。1.右肺上叶团块影，考虑中央型肺癌，较前CT片(2016-08-12CT)略减小，纵隔、右侧锁骨上淋巴结转移；右上肺动脉变窄；上腔静脉管腔狭窄，瘤栓形成，较前相仿；请结合临床；2.肺气肿；双肺索条灶；左肺下叶炎症，较前相仿；3.心包积液；4.左侧斜裂小结节，较前相仿。</t>
-  </si>
-  <si>
-    <t>6.5CM×6.5CM</t>
-  </si>
-  <si>
-    <t>纵隔、右侧锁骨上淋巴结</t>
-  </si>
-  <si>
-    <t>1.结合临床，右乳癌术后，纵隔、双肺门淋巴结转移，左肺转移，较前2016-1-26变化不著；左肾上腺转移，较前变化不著；骨转移，较前变化不著2.双肺炎症，部分加重3.心包积液4.肝囊肿右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见肿大淋巴结，大者直径约0.5CM。左肺野示数个结节灶，大者直径约0.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺可见结节灶，直径约0.9CM。胆、胰、脾及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示溶骨性及混合性骨质破坏。</t>
-  </si>
-  <si>
-    <t>纵隔、双肺门淋巴结,左肺,左肾上腺,骨</t>
-  </si>
-  <si>
-    <t>空腹6H以上，静脉注射显像剂，平静休息60MMIN后行CT和PET全身断层显像，PET图像经衰减校正、迭代法重建后行多层面、多幅显像，并与CT图像进行融合。影像清晰。PET/CT示右侧乳腺术后，术区及对侧乳腺未见异常放射性摄取升高；双侧卵巢示放射性浓聚块状影，最高SUV13.6，肿块融合成团，长径达9.9CM；腹腔网膜内、盆腔髂血管旁示结节状放射性摄取升高，最高SUV6.0，大者长径约为1.7CM；膈肌旁示肿大淋巴结，短径约为1.0CM，呈轻度放射性摄取，最高SUV2.0；肝内、肝脾包膜及肠系膜内示多发结节状放射性摄取升高，最高SUV6.6，大者长径约为2.4CM；腹腔内示少量液性密度影，胆囊内示高密度结节。脑部正常显影。左侧上颌窦粘膜示增厚，咽部示对称性放射性摄取升高，甲状腺体积饱满，呈对称性放射性摄取升高，最高SUV3.6；右肺中叶内示小片状放射性摄取升高，最高SUV2.4，余双肺示小结节，未见异常放射性摄取；脾不大。双肾及双侧输尿管显影正常。腹部可见数个形态不一、条管状、浓淡不一的正常肠影。全身骨骼未见异常浓聚影。1.右乳癌术后；考虑卵巢癌并腹盆腔淋巴结转移、肝转移、腹膜转移并腹腔少量积液。2.左侧上颌窦炎；考虑咽炎、甲状腺炎、右肺局限性炎症；双肺结节及膈肌旁淋巴结肿大，建议观察。3.胆囊结石。</t>
-  </si>
-  <si>
-    <t>9.9CM</t>
-  </si>
-  <si>
-    <t>肝,腹盆腔淋巴结,腹膜</t>
-  </si>
-  <si>
-    <t>左肺下叶后基底段及左肺上叶下舌段见团块影，大者大小约2.93CM×4.13CM，CT值约23HU，边界较清，边缘可见胸膜牵拉，增强扫描均匀强化，三期CT值分别约36、47、55HU。左肺可见多发实性结节，大者径约0.84CM。两肺纹理清晰。两肺门区未见异常。所示气管支气管影正常。纵隔内见稍大淋巴结，短径约1.18CM。两胸腔无积液征象，左侧胸壁可见胸膜增厚影。心脏大血管未见异常。1.左肺下叶后基底段占位，多考虑周围型肺癌、左肺多发转移；纵隔内多发稍大淋巴结；2.左侧胸膜增厚。</t>
-  </si>
-  <si>
-    <t>2.93CM×4.13CM</t>
-  </si>
-  <si>
-    <t>右肺下叶背段(S29)见椭圆形肿块影，约1.58CM×1.17CM，边缘不规整，可见多发毛刺影，并见血管影进入，牵拉邻近胸膜，CT值约6HU。右肺下叶见斑片影。右肺门区及纵隔内可见多发肿大淋巴结影，大者短径约2.07CM，双侧胸腔未见积液征象。心脏大血管未见异常。双侧第10后肋、胸骨柄及胸骨体内可见高密度影，胸2椎体内可见结节状高密度影，胸2附件骨质可见溶骨性破坏区。1.右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移，肿块较2014-05-20CT缩小；2.右肺下叶炎症，较前相仿；3.所示多发骨转移征象，右侧第10后肋病理性骨折，胸2椎体内及胸骨柄内病灶较前范围增大，密度增高。</t>
-  </si>
-  <si>
-    <t>右肺下叶背段(S29)</t>
-  </si>
-  <si>
-    <t>1.58CM×1.17CM</t>
-  </si>
-  <si>
-    <t>双侧第10后肋、胸骨柄及胸骨体,胸2椎体,胸2附件,右肺门、纵隔淋巴结</t>
-  </si>
-  <si>
-    <t>1.结合临床，右乳癌术后，纵隔、双肺门淋巴结转移，左肺转移，左肾上腺转移，骨转移2.双肺炎症3.心包积液4.肝囊肿右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内血管前间隙、腔静脉后、弓旁、主肺动脉窗区、气管隆突下及双肺门可见肿大淋巴结，大者直径约1.3CM。左肺野示数个结节灶，大者直径约1.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺可见结节灶，直径约1.4CM。胆、胰、脾及扫描野内双肾未见异常。腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示溶骨性骨质破坏。</t>
-  </si>
-  <si>
-    <t>1.右下中心型肺癌，右肺及右侧胸膜多个结节考虑转移，较前CT(201.-03-01)病变进展，右侧胸腔积液，较前增多；纵隔淋巴结增大；2.右侧第2、8肋骨成骨性转移，较前相仿；3.右乳钙化结节，详查；4.脂肪肝。双侧胸廓不对称，右侧胸廓塌陷，右肺体积减小，右肺下叶见高密度肿块影，形态不规则，边界不清楚，大小约1.89CM×3.6CM，CT值约29HU；右肺野及右胸膜可见高密度结节影，大小不一；右侧胸腔及右侧叶间裂见液性密度影，部分形成包裹，右侧胸腔可见弧形液性密度影，右侧胸膜不均匀增厚，邻近肺组织部分受压膨胀不全。右肺门区增大的淋巴结。心影略增大，右侧心膈角区多发结节，右侧第2、8肋骨骨质密度不均匀增高，形态不规整，其内可见骨质破坏。右侧乳腺内见一结节影，径约0.9CM，边界清晰，其内见点状钙化。肝实质密度明显减低。</t>
-  </si>
-  <si>
-    <t>右肺,右侧胸膜,右侧第2、8肋骨</t>
-  </si>
-  <si>
-    <t>右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见小淋巴结，大者直径约0.5CM。左肺野示数个结节灶，大者直径约0.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺饱满。胆、胰、脾及扫描野内右肾未见异常。左肾示直径约3.0CM的囊性密度灶。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示成骨性及混合性骨质破坏。1.结合临床，右乳癌术后，纵隔、双肺门淋巴结较前(2016-04-22)片变化不著，左肺转移，变化不著；左肾上腺转移，较前变化不著；骨转移，较前变化不著2.双肺炎症，基本变化不著3.心包少量积液，变化不著4.肝囊肿；左肾囊肿</t>
-  </si>
-  <si>
-    <t>左肺,左肾上腺,胸腰椎,肋骨</t>
-  </si>
-  <si>
-    <t>1.右肺上叶中心型肺癌并阻塞性肺炎、阻塞性肺不张；右侧大量胸腔积液，对比2012-08-31片明显进展；右侧第2肋骨转移；2.左肺下叶病灶为新发病灶，考虑转移瘤；3.慢性支气管炎、肺气肿征象；4.左肺尖陈旧性病变。两肺支气管血管束增多、变细；两肺透过度明显增加，肺野内弥漫囊状透光区；右肺门增大，右肺上叶支气管腔明显狭窄，壁明显增厚，呈团块状、范围约5.4CM×3.4CM，CT值约34HU，增强扫描可见病灶呈轻度不均匀强化，三期CT值分别为47HU、69HU、60HU，右侧胸腔内可见大量积液征象，右肺膨胀不全。左肺下叶内基底胸膜下可见小结节影，径约为0.5CM。左肺尖可见片状及结节影，其内可见钙化；纵隔内可见增大的淋巴结，增强扫描呈环影强化；心影增大。主动脉和冠脉钙化。</t>
-  </si>
-  <si>
-    <t>5.4CM×3.4CM</t>
-  </si>
-  <si>
-    <t>右侧第2肋骨,左肺下叶</t>
-  </si>
-  <si>
-    <t>1.右肺下叶肺癌，并双肺、右胸膜多发转移；2.右侧胸腔积液，心包积液；3.甲状腺饱满；以上征象较前CT(2015-11-13)相仿。右肺下叶可见不规则稍低密度影，与右肺门分界不清，边缘毛糙，CT值约为38HU，其内密度不均，长径约为1.99CM×1.5CM，邻近肺组织可见模糊影，右肺下叶内基底段支气管截断，右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影，边缘毛糙，大者径约为0.6CM；纵隔内未见增大淋巴结影。右侧胸腔、心包内见少许液性密度影。甲状腺明显肿大。</t>
-  </si>
-  <si>
-    <t>1.99CM×1.5CM</t>
-  </si>
-  <si>
-    <t>1.结合临床，左乳癌术后，术区小片影，较前(2016-4-5)范围略缩小；宫颈转移治疗后，变化不著；骨转移，较前胸椎周围软组织密度增厚，余基本变化不著2.左肺下叶类结节灶，变化不著；左肺纤维灶3.考虑子宫肌瘤，变化不著4.双侧附件略饱满，变化不著5.双侧腋窝、左锁上、腹腔、腹膜后及盆腔小淋巴结，较前基本变化不著6.双侧坐骨局限性骨质密度减低，右侧部分肋骨骨折，均变化不著左乳外侧局部结构紊乱，局部可见小斑片状强化影。左肺下叶见索条影。左肺下叶胸膜下见一直径不足0.5CM小类结节灶。双侧腋窝、胸肌间及左锁上见短径不足1.0CM小淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。左侧肾上腺饱满，肝、胆、胰、脾、右侧肾上腺及双肾未见异常。腹腔及腹膜后、膈上见大者短径约0.5CM小淋巴结。宫颈体积稍大，强化不均。宫体体积不规则增大，见多发软组织密度灶，增强后呈不均匀强化。双侧附件饱满。膀胱充盈良好，壁未见增厚。盆腔内髂血管旁、骶前见短径不足0.5CM小淋巴结。多发椎骨及胸骨密度不均，部分周围示软组织密度影，以胸椎周围为著，与邻近结构分界不清。双侧坐骨局限性骨质密度减低。右侧部分肋骨骨质中断。</t>
-  </si>
-  <si>
-    <t>右肺下叶外，后基底段见一高密度团块影，大小约5.01CM×4.97CM，CT值约38HU，呈分叶状改变，与邻近胸膜关系紧密。双肺散在多发小结节状稍高密度影。两肺门区未见异常。纵隔内见多发小淋巴结。右肺叶间裂增厚，右侧胸腔见弧形液体密度影。心脏大血管未见异常。第11胸椎椎体可见类圆形低密度影，骨质破坏。所示肝实质密度较同层脾脏密度减低，CT值约41HU。1.右肺下叶占位，考虑周围型肺癌伴双肺内转移，胸椎骨转移，随诊；2.右侧胸腔积液，右肺叶间裂包裹性积液；3.所示脂肪肝。</t>
-  </si>
-  <si>
-    <t>右肺下叶外,后基底段</t>
-  </si>
-  <si>
-    <t>5.01CM×4.97CM</t>
-  </si>
-  <si>
-    <t>双肺,第11胸椎椎体</t>
-  </si>
-  <si>
-    <t>与2013-10-28前片对比：1.左肺下叶中央型肺癌并阻塞性肺炎与阻塞性肺不张，左下肺动静脉受侵，纵隔及左肺门淋巴结转移，较前进展；2.双肺下叶多发类圆形小结节，考虑转移瘤，较前相仿；3.双肺弥漫性间质纤维化，较前进展；4.双侧胸膜增厚，左侧胸腔积液，较前新发。左肺下叶背段可见肿块影，边界模糊，径约8.46CM×8.21CM，平扫CT值约24-42HU，增强实性部分轻度强化，囊性低密度部分不强化，CT值约为14-54HU，22-66HU，16-44HU；左肺下叶部分支气管截断，左侧肺门可见增大淋巴结，左下肺动静脉受侵，侵及胸膜；双肺下叶及胸膜下多发类圆形小结节影，大者径约1.37CM×1.59CM；双肺小叶间隔增厚，近胸膜处多发囊状无肺纹理透亮区，纵膈内可见增大淋巴结，大者径约1.87CM×1.40CM。左侧胸腔可见弧形低密度影，双侧胸膜增厚心脏大血管未见异常。</t>
-  </si>
-  <si>
-    <t>8.46CM×8.21CM</t>
-  </si>
-  <si>
-    <t>纵隔及左肺门淋巴结,双肺下叶</t>
-  </si>
-  <si>
-    <t>左肺下叶背段可见团块影，较大截面大小约为4.6CM×3.3CM，平扫CT值约为43HU，边界尚清，浅分叶状，周围可见斑片状稍高密度影。双肺另见弥漫多发大小不等结节影。两肺门区未见异常。纵隔内未见淋巴结增大。心脏大血管未见异常。部分肋骨、胸椎及附件形态欠规整，可见骨质破坏区及软组织肿块。1.左肺下叶背段周围型肺癌，较前2015-12-7变小，伴双肺多发转移瘤；2.部分肋骨、胸椎及附件形态欠规整，转移不除外，部分较前新发，请结合临床。</t>
-  </si>
-  <si>
-    <t>4.6CM×3.3CM</t>
-  </si>
-  <si>
-    <t>双肺,肋骨,胸椎及附件</t>
-  </si>
-  <si>
-    <t>1.右肺下叶占位，恶性；右侧肺门和纵隔多发肿大淋巴结，考虑转移；右侧胸腔少量积液征象；2.右肺少许炎症可能。3.双侧肺(52、49、40、37、19)小结节，请随诊。右肺下叶(18)见肿块影，边界尚清，大小约为，6.2CM×5.0CM，其内密度欠均匀，CT值约为21-37HU，增强扫描病灶周围呈明显强化，中央可见不强化坏死区，右肺下叶部分支气管截断，右侧肺门和纵隔内见异常增大的淋巴结影，增强扫描呈明显环形强化。右肺叶见斑片模糊影。两肺纹理增强。右侧胸腔少量积液征象。主动脉、冠状动脉壁钙化。</t>
-  </si>
-  <si>
-    <t>6.2CM×5.0CM</t>
-  </si>
-  <si>
-    <t>右侧肺门和纵隔多发肿大淋巴结</t>
-  </si>
-  <si>
-    <t>1.考虑左肺上叶中心型肺癌(较2013.2.20CT对比明显增大)并阻塞性肺不张，纵膈内多发淋巴结转移；2.心包积液较前新增；3.双侧胸腔积液，较前新增。左肺门区见团块状软组织密度影，最大截面约为7.73CM×7.39CM，CT值约45HU，左肺上叶上舌段支气管变窄，前段、尖后段、下舌段支气管均未见显示。右肺门未见明显异常。纵隔见多个肿大淋巴结影。心包可见大量积液。双侧胸腔可见弧形影。</t>
-  </si>
-  <si>
-    <t>7.73CM×7.39CM</t>
-  </si>
-  <si>
-    <t>纵膈内多发淋巴结</t>
-  </si>
-  <si>
-    <t>双肺多发粟粒灶及小结节，右肺下叶可见高密度团块影，呈分叶状，右肺下叶部分支气管闭塞，其内密度均匀，大小约为6.5CM×7.1CM，平扫CT值约为42HU。两肺门区未见异常。所示肺内血管支气管束影稍增多。纵隔内见多发小淋巴结影。右侧胸腔积液征象。部分大血管管壁及冠脉走行区可见致密影。所示左肾上腺结合部可见软组织小结节影。1、右肺下叶肺癌，建议能谱增强详查；2、双肺多发小结节及粟粒灶，转移可能性大；3、右侧胸腔积液；4、所示左肾上腺结合部软组织小结节影，随诊。</t>
-  </si>
-  <si>
-    <t>6.5CM×7.1CM</t>
-  </si>
-  <si>
-    <t>1.结合临床，右乳癌术后，纵隔、双肺门淋巴结转移，左肺转移，左肾上腺转移，均较前(2015-11-5)示好转；骨转移，变化不著2.双肺炎症，变化不著3.心包积液4.肝囊肿右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见肿大淋巴结，大者直径约0.7CM。左肺野示数个结节灶，大者直径约0.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺可见结节灶，直径约0.9CM。胆、胰、脾及扫描野内双肾未见异常。腹膜后未见肿大淋巴结。部分部分胸腰椎及肋骨示溶骨性骨质破坏。</t>
-  </si>
-  <si>
-    <t>纵隔、双肺门淋巴结,左肺,左肾上腺,胸腰椎,肋骨</t>
-  </si>
-  <si>
-    <t>1.结合临床，左乳癌术后；骨转移2.肝右后叶片状密度增高影，考虑动静脉瘘形成3.胆囊结石4.左侧肾上腺结节灶，转移待排，建议密切观察5.脂肪肝以上均较前(2014-10-13)片变化不著左乳术后，术区结构紊乱，肌肉，密度欠均质，术区未见异常强化灶。左侧腋窝结构紊乱。右乳未见异常。双侧内乳区、双侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰，未见结节及异常强化灶。肝脏密度减低；肝右后叶内见片状密度增高影，其强化方式与同层腹主动脉相似。胆囊充盈可，其内见点状致密影。胰、脾、右侧肾上腺及扫描范围内双肾未见异常。左侧肾上腺见软组织结节灶，短径约1.3CM，增强后轻度强化。骨窗示胸骨及T12胸椎示混合性骨质破坏。</t>
-  </si>
-  <si>
-    <t>左侧肾上腺,胸骨,T12胸椎</t>
-  </si>
-  <si>
-    <t>左肺下叶见团块状高密度影，边界不规则，可见细小毛刺及分叶，周围可见淡片影。病变最大截面大小约为1.70CM×1.05CM，右肺下叶内侧底段见一小结节影，直径约为0.33CM。肺门区未见明显异常。气管支气管影正常。纵隔内未见增大的淋巴结。双胸腔无积液征象。心脏不大，大血管壁钙化。所示部分下位胸椎内见结节样稍高密度影。胸7椎体及附件骨质溶骨性破坏改变。肝脏密度减低，CT值约27HU。与2011-10-10日原片对照：1.左肺下叶肺癌，较前减小；2.右肺下叶小结节、部分下位胸椎内高密度影，较前无明显变化；3.胸7椎体及附件骨质破坏，考虑为骨转移，对比原片破坏范围增大；4.脂肪肝。</t>
-  </si>
-  <si>
-    <t>1.70CM×1.05CM</t>
-  </si>
-  <si>
-    <t>胸7椎体及附件</t>
-  </si>
-  <si>
-    <t>1.结合临床，右乳癌术后改变，术区胸壁强化欠均质，请结合其他检查；骨转移，较前(2015-10-14)变化不著；左锁骨上淋巴结转移治疗后，较前好转2.右肺中叶结节灶，变化不著；左肺尖区类结节灶，建议观察3.脂肪肝，肝内钙化灶；肝内低密度灶，考虑囊肿，建议观察4.胆囊结石右乳术后缺如，术区胸壁局部强化欠均质(如5-20)。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门及纵隔未见肿大淋巴结。左侧锁骨上、左侧内乳区见小淋巴结，短径不足0.5CM。右肺中叶见一结节灶(图3-29)，直径约0.3CM，密度较低。左肺尖区示类结节灶。膈上示稍大淋巴结。肝实质密度不均匀性减低，肝内见斑点状钙化灶及囊性密度灶。胆囊充盈可，壁未见增厚，内示泥沙样略高密度影。双肾门朝向前方。胰腺、脾、双侧肾上腺未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。胸骨及部分胸椎示骨质破坏。</t>
-  </si>
-  <si>
-    <t>左锁骨上淋巴结,胸骨,胸椎</t>
-  </si>
-  <si>
-    <t>1.左肺门肿块，考虑中央型肺癌伴远端阻塞性肺不张可能性大，左锁骨区、纵隔、左肺门淋巴转移、左肺动脉受侵可能，请结合临床详查；2.右肺下叶少许炎症；3.双侧胸腔少量积液征象。4.右侧肾上腺结节，转移?。左肺门团块状密度增高影，大小约4.5CM×4.9CM，CT值：53HU；增强后病灶明显强化，三期CT值分别75HU、68HU、61HU。左侧支气管腔变窄、截断，其远端肺组织不张。右肺下叶少许淡片状密度增高影。左锁骨区、纵隔、左肺门淋巴结增大，呈融合趋势。左肺动脉与病灶界限不清，模糊。两胸腔少量积液征象。心脏不大，所示骨质未见明显异常。</t>
-  </si>
-  <si>
-    <t>4.5CM×4.9CM</t>
-  </si>
-  <si>
-    <t>右侧肾上腺,左锁骨区、纵隔、左肺门淋巴结</t>
-  </si>
-  <si>
-    <t>右肺下叶后基底段见一高密度团块影，大小约2.3CM×3.0CM，CT值约24HU，呈分叶状改变，与邻近胸膜关系紧密。双肺散在多发小结节状稍高密度影。两肺门区未见异常。纵隔内见多发小淋巴结。心脏大血管未见异常。第11胸椎椎体可见类圆形低密度影，骨质破坏。所示肝内低密度病变。与2014-04-22胸部CT比较：1.右肺下叶周围型肺癌，双肺转移瘤，较前片缩小；胸椎转移，未见明显变化；2.右侧胸腔积液，较前减少；3.所示肝内低密度病变，较前新发，详查。</t>
-  </si>
-  <si>
-    <t>2.3CM×3.0CM</t>
-  </si>
-  <si>
-    <t>双肺,第11胸椎</t>
-  </si>
-  <si>
-    <t>1.右肺门肿块，考虑肺癌可能；2.双肺多发病变，纵隔淋巴结肿大，随诊；3.支气管炎，肺气肿；双侧胸膜增厚；4.心包增厚；5.部分椎体及肋骨、胸骨转移；以上对比2012.08.06前片，未见明显变化，请结合临床。双肺纹理稀疏，可见多发含气透亮影。右肺尖可见斑片状高密度影，边缘可见细毛刺，大小约为3.15CM×1.34CM，CT值约47HU；右肺上叶支气管狭窄，右肺门区见肿块影。左肺上叶舌段及左肺下叶內基底段可见片状高密度影。双肺可见多发小结节影。右肺下叶外基底段可见一点状钙化影。纵隔内可见多发增大的淋巴结，大者短径约1.06；双胸腔无积液征象，双侧胸膜增厚。心脏不大，部分大血管见钙化斑。心包增厚。部分椎体及肋骨、胸骨可见多发斑片状致密影。</t>
-  </si>
-  <si>
-    <t>3.15CM×1.34CM</t>
-  </si>
-  <si>
-    <t>1、左肺下叶团块灶，考虑周围型肺癌并少许阻塞性炎症，请结合临床；2、右肺下叶结节灶，请随诊；3、支气管炎，右肺中叶索条灶；4、甲状腺低密度灶，请结合临床；5、左侧肾上腺结节，转移不除外，随诊。左肺下叶见团块影，最大截面积约3.77CM×3.50CM，CT值约22HU，可见浅分叶及胸膜牵拉征，增强扫描三期CT值约51HU、79HU、71HU，周围可见淡片影。右肺下叶后基底段见结节影，径约0.49CM。双肺纹理增强、模糊。右肺中叶见索条影。双侧肺门未见异常。纵隔未见异常增大淋巴结。双侧胸腔未见积液征象。心及大血管未见异常。甲状腺左叶见低密度影，增强扫描未见强化。所示左侧肾上腺可见结节影，增强后可见轻度强化。</t>
-  </si>
-  <si>
-    <t>3.77CM×3.50CM</t>
-  </si>
-  <si>
-    <t>左侧肾上腺</t>
-  </si>
-  <si>
-    <t>右肺下叶可见团块影，边界尚清，CT值约为38HU，约为4.45CM×4.71CM。双肺可见多发的大小不等的小结节影。右肺中叶、下叶、左肺上叶舌段可见片状的高密度影。两肺门、纵隔内可见多发肿大的淋巴结。两胸腔积液征象，右侧显著。心包积液。甲状腺明显肿大。右侧胸壁下可见结节影，径约0.86CM。1.右肺下叶病变，考虑周围肺癌，双肺多发转移瘤，双肺门、纵隔淋巴结转移，较2014-12-09相仿，右肺下叶斜裂处团块影较前增大；2.双胸腔积液，较前稍有吸收；心包积液；3.右肺中叶、下叶、左肺上叶舌段炎症；4.右侧胸壁下结节影，请结合临床。</t>
-  </si>
-  <si>
-    <t>4.45CM×4.71CM</t>
-  </si>
-  <si>
-    <t>双肺,双肺门、纵隔淋巴结</t>
-  </si>
-  <si>
-    <t>1.右肺上叶后段周围型肺癌，纵隔淋巴结转移，与2014-01-07片比较明显增大，请结合临床；2.左肺尖及右肺下叶结节影，随诊；3.肝、脾及胰腺后方病灶，转移不除外，请结合相关检查。右肺上叶后段可见团块影，截面约2.87CM×3.78CM，CT值约32HU，增强有强化，三期CT值约43HU、45HU、47HU；病灶位于右肺门上区，腔静脉后及气管前可见团块影，截面约4.5CM×2.4CM，CT值约44HU，增强后不均匀强化，纵隔内见增大淋巴结。左肺尖见结节影，左肺下叶见结节影(47)；各大血管边界清晰。主动脉，肺动脉主干及其左右分支内造影剂密度均匀。所示肝、脾内可见类圆形低密度灶；胰腺后方也见椭圆形软组织密度灶。</t>
-  </si>
-  <si>
-    <t>右肺上叶后段,右肺门上区</t>
-  </si>
-  <si>
-    <t>2.87CM×3.78CM,4.5CM×2.4CM</t>
-  </si>
-  <si>
-    <t>纵隔淋巴结,肝,脾,胰腺后方</t>
-  </si>
-  <si>
-    <t>双肺透过度欠均，左下肺可见一肿块影，边界不规则，最大层面3.72CM×2.13CM，CT值约32HU；左肺下叶基底段部分支气管略窄；双肺多发小结节影。纵隔、左肺门可见多发稍大的淋巴结，大者短径约0.78CM。两胸腔无积液征象。心脏大血管未见异常。第3胸椎左侧横突、第4、5、7、8、10胸椎椎体内可见结节状高密度影，第11胸椎椎体骨质密度不均匀减低，左侧第4、5、7后肋骨质密度增高。甲状腺左叶见类圆形低密度影，边界欠清，大小约为0.85CM，CT值约为28HU。肝右叶多发低密度灶，右侧肾上腺区可见软组织密度影。左侧肾上腺内支似见结节影。1.左下肺周围型肺癌，双肺多发小转移灶，对比2012-06-04片，病变未见明显进展；2.纵隔、左肺门多发增大淋巴结，对比前片变化不大；3.胸椎、左侧肋骨、胸骨及右侧锁骨多发转移；4.甲状腺占位，腹部改变，请详查。</t>
-  </si>
-  <si>
-    <t>3.72CM×2.13CM</t>
-  </si>
-  <si>
-    <t>双肺,第3胸椎左侧横突,第4、5、7、8、10胸椎椎体,第11胸椎椎体,左侧第4、5、7后肋骨,右侧锁骨</t>
-  </si>
-  <si>
-    <t>右肺下叶肺门旁可见一肿块影，最大层面2.70CM×3.75CM，CT值约37HU，增强后三期CT值分别为：50HU、68HU、51HU。右下肺支气管受压变窄，右肺下叶可见斑片状阴影，其内可见支气管充气征，并可见血管影注入。最大层面5.51CM×7.59CM，CT值约37HU，增强后三期CT值分别是：56HU、68HU、84HU。左肺下叶后底段及外底段可见淡片影。双肺可见多发囊状薄壁透亮影，双上肺为著。两肺门区未见异常。纵隔内可见增大的淋巴结，最大层面1.35CM×2.27CM，部分淋巴结钙化。两胸腔无积液征象。心脏大血管未见异常。片示左肾囊肿。肝内多发不强化低密度影。1.右下肺中央型肺癌并下叶阻塞性肺炎，纵隔淋巴结转移；2.左肺下叶后底段及外底段炎症；3.肺气肿、肺大泡；4.片示左肾囊肿，肝囊肿。</t>
-  </si>
-  <si>
-    <t>2.70CM×3.75CM</t>
-  </si>
-  <si>
-    <t>1.左肺下叶肺癌伴双肺多发转移瘤，较前2016-02-19CT减小，右侧胸水较前略减少；2.左侧肩胛骨、部分肋骨、胸椎及附件转移，较前略好转，请结合临床。左肺下叶可见团块影，较大截面大小约3.5CM×2.5CM，CT值约为52HU，边界尚清，浅分叶状，周围可见斑片状稍高密度影。双肺另见散在多发大小不等结节影。两肺门区未见异常。纵隔内未见淋巴结增大。右侧胸腔内可见弧形积液影。心脏大血管未见异常。左侧肩胛骨、双侧部分肋骨、胸椎及附件形态欠规整，可见骨质破坏区。</t>
-  </si>
-  <si>
-    <t>双肺,左侧肩胛骨,肋骨,胸椎及附件</t>
-  </si>
-  <si>
-    <t>右肺中叶可见团块影，边缘不规则，长径约为2.8CM，平扫CT值为44HU，双肺可见多发结节影，较大者径约0.6CM；所示气管支气管影正常。右肺门增大，可见多个小淋巴结，纵隔内见增大淋巴结影，径约1.1CM。前上纵隔胸腺区见囊性密度灶，大小约为1.39CM×4.28CM，CT值约为11HU。两胸腔无积液征象。心脏大血管未见异常。与2012.12.11CT片对比：1.右肺中叶周围型肺癌，较前片病灶缩小；2.双肺多发转移瘤，部分较前变小；3.右侧肺门增大，纵隔淋巴结增大，与前片相仿；4.前上纵隔囊性灶，较前大致相同。</t>
-  </si>
-  <si>
-    <t>右乳示多发软组织密度结节及肿块，部分融合，大者截面约3.7CM×2.0CM，边缘分叶，与皮肤关系密切，增强扫描可见较显著不均匀强化。右腋窝示强化小淋巴结，大者短径约0.5CM。左乳未见异常。左腋窝及锁上未见明显肿大淋巴结。纵隔内4R/L及7区示多个略增大淋巴结，大者短径约0.7CM。双侧胸腔示少量液体密度影，左侧较著，左侧胸膜略厚。肝内示多发低密度结节及肿块，大者截面约3.8CM×4.6CM，边缘模糊，增强扫描可见不均匀强化。胆胰脾肾上腺及双肾未见异常。腹腔腹膜后未见明显肿大淋巴结。多发胸腰椎、肋骨、左侧肩胛骨及胸骨示骨质破坏。1.右乳癌，肝转移，多发骨转移，病灶较前示缩小2.右腋窝小淋巴结；纵隔淋巴结略大，变化不著3.左侧胸膜略厚，双侧胸腔少量积液</t>
-  </si>
-  <si>
-    <t>3.7CM×2.0CM</t>
-  </si>
-  <si>
-    <t>肝,胸腰椎,肋骨,左侧肩胛骨,胸骨</t>
-  </si>
-  <si>
-    <t>右肺下叶(25)见类圆形肿块影，CT值约26HU，边界较清，大小约2.7CM×2.1CM，分叶，边缘可见毛刺，邻近胸膜凹陷。左肺叶(S27、35)见高密度小结节影，边界清晰，径约0.56CM；右肺上叶(36、41、45)、中叶(29、32、33)左肺下叶外侧底段(S28)可见多发粟粒影；两肺门区未见异常。前上纵隔可见结节影，径约0.9CM，CT值约30HU。纵隔稍大淋巴结影。两胸腔无积液征象。心脏未见异常，主动脉、冠状动脉管壁钙化。第3胸椎右侧横突内可见类圆形高密度影。第8胸椎骨质不规整，其内可见斑片状高密度影。所示肝内密度减低，小于同层脾密度。1.右肺下叶周围型肺癌，较(2015-11-10)相仿；2.左肺叶小结节、左肺下叶粟粒灶，部分病灶较前略增大；3.前上纵隔结节，较前相仿；4.第3胸椎右侧横突高密度灶，较前相仿；第8胸椎骨质破坏，较前骨质破坏明显，考虑转移；5.脂肪肝。</t>
-  </si>
-  <si>
-    <t>1.右乳癌术后改变；右侧胸膜多发结节灶，考虑为胸膜转移；多发骨质破坏，考虑为骨转移；左锁骨上淋巴结转移2.上腹扫描未见异常右乳术后缺如，术区未见异常密度灶。右侧腋窝结构紊乱。左乳未见异常。双腋窝及內乳区未见肿大淋巴结。右侧胸膜(包括叶间胸膜、膈胸膜)示多发类结节灶，直径约0.5CM，边界欠清，右肺中叶示一结节灶，直径约0.5CM，密度较淡，余双肺野清晰，气管及各级支气管通畅，未见异常密度灶。双肺门及纵隔未见肿大淋巴结。双侧胸腔未见积液征象。扫描野内肝实质密度轻度减低。胸骨、T3、T7、T9、T12椎体呈不规则骨质改变。鼻咽、口咽、喉及下咽未见异常。左侧锁骨上区示多个淋巴结，大者短径约1.2CM。余双侧颈动脉鞘区见短径不足0.5CM小淋巴结。肝脏大小形态未见异常，肝实质未见异常密度影。胆囊、胰腺、脾、双肾、肾上腺未见异常，腹腔腹膜后未见肿大淋巴结影。</t>
-  </si>
-  <si>
-    <t>右侧胸膜,左锁骨上淋巴结,胸骨,T3、T7、T9、T12椎体</t>
-  </si>
-  <si>
-    <t>1.前上纵隔胸腺癌，双肺多发转移、纵隔淋巴结转移，双侧胸腔积液、胸骨骨质转移性骨破坏；2.双肺下叶炎症。前纵隔内可见软组织密度影，边界欠清，最大截面约2.1CM×4.6CM，CT值约57HU，相邻胸骨可见多发骨质破坏区；两肺纹理增强，双肺可见多发大小不等类圆形高密度影，大者径约1.1CM；双肺下叶可见斑片状高密度影，边界模糊；双肺门区未见异常，所示气管支气管影通畅；纵隔内可见多发增大的淋巴结，大者位于主动脉弓旁，径约1.25CM；双侧胸腔可见弧形液体密度影，心脏不大。</t>
-  </si>
-  <si>
-    <t>前上纵隔胸腺</t>
-  </si>
-  <si>
-    <t>2.1CM×4.6CM</t>
-  </si>
-  <si>
-    <t>双肺,纵隔淋巴结,胸骨</t>
-  </si>
-  <si>
-    <t>右肺下叶见团块影，径约为3.5CM，CT值约为38HU，增强后CT值约为53HU、48HU及66HU，边缘可见毛刺影及胸膜凹陷；右肺另见多发大小不等界清结节影。右肺下叶条片状实变，内见含气支气管影，增强后明显强化。左肺小结节(37、33)，纵隔内见数个增大的淋巴结，大者短径约为1.9CM。心脏大血管形态自然。右侧胸腔内见弧形积液征象，增强后右胸膜见结节状强化。1.上述征象考虑右肺下叶周围型肺癌可能大，并双侧肺多发转移灶可能，纵隔多发淋巴结转移，右侧胸膜转移及右侧胸腔积液征象，请结合临床详查除外其他可能；2.右肺下叶部分实变，请随诊。</t>
-  </si>
-  <si>
-    <t>3.5CM</t>
-  </si>
-  <si>
-    <t>双侧肺,纵隔多发淋巴结,右侧胸膜</t>
-  </si>
-  <si>
-    <t>1.右乳癌，肝转移，较前略缩小；多发骨转移，较前骨质密度增高2.纵隔淋巴结略大，变化不著3.双侧胸膜略厚，双侧胸腔及心包积液，较前进展4.双肺炎症5.右侧侧脑室旁片状低密度区，考虑梗塞，建议MR检查右乳示多发软组织密度结节及肿块，部分融合，大者截面约1.4CM×1.9CM，边缘分叶，与皮肤关系密切，增强扫描可见较显著不均匀强化。左乳未见异常。左腋窝及锁上未见明显肿大淋巴结。纵隔内4R/L及7区示多个略增大淋巴结，大者短径约0.7CM。双肺纵隔旁见斑片状密度增高影。双侧胸腔、心包示液体密度影，以右侧为著，双侧胸膜略厚。肝内示多发低密度结节及肿块，大者截面约3.3CM×2.6CM，边缘模糊，增强扫描可见不均匀强化。胆胰脾肾上腺及双肾未见异常。腹腔腹膜后未见明显肿大淋巴结。多发胸腰椎、肋骨、双侧肩胛骨及胸骨示骨质破坏。右侧侧脑室旁见片状低密度区，边缘模糊，增强后未见强化，余脑实质未见异常。</t>
-  </si>
-  <si>
-    <t>1.4CM×1.9CM</t>
-  </si>
-  <si>
-    <t>肝,胸腰椎,肋骨,双侧肩胛骨,胸骨</t>
-  </si>
-  <si>
-    <t>左上肺门处可见肿块影，分叶状，大小为3.95CM×3.19CM，形状不规则，边缘清，与肺动脉分界不清，CT值为35HU，增强扫描三期CT值分别为52、62、54HU，均匀轻度强化，包绕左肺动脉，左肺上动脉未见显示，纵隔及左肺门可见多发肿大淋巴结，大者短径为1.00CM。左侧胸膜牵拉凹陷。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常左上肺门中央型肺癌，阻塞左上肺动脉，纵隔及左肺门淋巴结转移，较2015-08-05CT左上肺门旁病变减小，纵隔及左肺门淋巴结减小。</t>
-  </si>
-  <si>
-    <t>3.95CM×3.19CM</t>
-  </si>
-  <si>
-    <t>右肺下叶肿块，边缘毛刺，邻近胸膜牵拉，大小约为2.54CM×3.0CM，CT值约46HU。双肺内可见多发结节样及粟粒样密度影，大者径约1.1CM。右肺下叶斑片状高密度影，边界模糊。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。右侧胸腔少量积液征象。心脏大血管未见异常。部分上位胸椎骨密度增高。右乳腺钙化灶。甲状腺右叶增大，密度不均匀。1.右肺下叶后基底段团块灶，考虑恶性占位性病变，周围型肺癌可能性大，伴双肺多发转移，较前2016-09-22CT片略增大；2.右肺下叶炎症，请结合临床；3.部分胸椎骨及邻近肋骨密度增高，较前相仿；4.甲状腺右叶病变，请结合相关检查。5.右侧胸腔少量积液征象。</t>
-  </si>
-  <si>
-    <t>2.54CM×3.0CM</t>
-  </si>
-  <si>
-    <t>1.右肺上叶肿块，首先考虑肺癌并右肺转移，纵隔淋巴结转移，请结合临床，详查；2.右侧大量胸腔积液，右肺下叶膨胀不全；3.一胸椎高密度灶，随诊。右肺上叶见肿块影，径约2.07CM，CT值约50HU，呈分叶状，边缘毛糙；右肺可见多发类圆形结节影，大者径约0.55CM；右侧胸腔可见弧形液性密度影，右肺下叶膨胀不全；纵隔内可见肿大淋巴结影，大者短径约1.05CM。心脏大血管未见异常。一胸椎见结节样高密度影。</t>
-  </si>
-  <si>
-    <t>2.07CM</t>
-  </si>
-  <si>
-    <t>左肺门区略增大，左肺上叶支气管狭窄；左肺上叶尖后段支气管腔轻度狭窄。左肺上叶尖后段(51)见一结节影，约为1.46CM，可见毛刺及浅分叶，邻近血管增粗、僵直。左肺上叶可见多发斑片模糊高密度影。左肺上叶胸膜下见多发纤维索条影。双上肺尖见局部胸膜轻度增厚。右肺尖、右肺下叶可见多发散在粟粒影。右肺下叶近斜裂(34)见一结节影，约为0.3CM×0.2CM，并见索条影相连。右肺门区未见异常。纵隔内见多发淋巴结，较大者短径2.4CM，界清。两胸腔无积液征象。1.左肺门占位可能大；左肺上叶尖后段结节，较前CT(2015-07-17)明显增大，纵隔淋巴结较前增大，考虑肺癌；左肺上叶阻塞性肺炎，较前新发；2.右肺下叶外基底段钙化灶；右肺下叶多发炎症；3.右肺下叶近斜裂结节，较前相仿；4.右肺下叶多发粟粒灶，较前新发，不除外转移，随诊。</t>
-  </si>
-  <si>
-    <t>1.46CM</t>
-  </si>
-  <si>
-    <t>右乳术后缺如，术区胸壁未见明显增厚。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门未见肿大淋巴结。左侧内乳区、纵隔内及右侧心膈角区见略肿大淋巴结，大者短径约0.8CM。右肺中叶见一结节灶(图4-25)，直径约0.3CM，密度较低。右侧胸膜显示不均匀增厚。肝实质密度不均匀性减低，实质内可见散在多发低密度灶，边缘较模糊，大者直径约1.7CM，轻度强化。另肝内可见结节状钙化灶。胆囊未见显示。双肾门朝向前方。胰腺、脾、双侧肾上腺未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。鼻咽、口咽及喉形态可，诸壁不厚。双侧副鼻窦充气良好。甲状腺双侧叶形态大小密度可。双颈部肌间隙清晰，未见明显肿大淋巴结。胸骨、右侧部分肋骨及部分胸椎示成骨性骨质破坏。1.结合临床，右乳癌术后改变，肝脏多发转移；多发骨转移；左侧内乳区、纵隔及右侧心膈角区淋巴结肿大2.右肺中叶结节灶，较前2016-2-24变化不著3.右侧胸膜增厚，建议观察4.肝内钙化灶5.胆囊未见显示，请结合临床6.颈部扫描未见明显异常</t>
-  </si>
-  <si>
-    <t>胸骨,右侧部分肋骨,胸椎,肝脏</t>
-  </si>
-  <si>
-    <t>1.右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移，肿块较2014-04-02CT缩小，空洞形成；2.右肺下叶炎症，请随诊；3.所示多发骨转移征象，右侧第10后肋病理性骨折，较前胸骨柄内病灶较前范围增大。右肺下叶背段(30)见椭圆形肿块影，径约1.9CM，边缘不规整，可见多发毛刺影，并见血管影进入，牵拉邻近胸膜，内空洞形成，CT值约8HU。右肺下叶见斑片影。右肺门区及纵隔内可见多发肿大淋巴结影，大者短径约1.65CM。两胸腔无积液征象。心脏大血管未见异常。双侧第10后肋、胸骨柄及胸骨体内可见高密度影，胸2附件骨质可见溶骨性破坏区。</t>
-  </si>
-  <si>
-    <t>1.9CM</t>
-  </si>
-  <si>
-    <t>右肺门、纵隔淋巴结,双侧第10后肋,胸骨柄,胸骨体,胸2附件</t>
-  </si>
-  <si>
-    <t>1.左侧肺门区占位，首先考虑恶性肿瘤，双肺多发结节灶，考虑为转移瘤，请结合临床；2.右肺下叶钙化灶；3.双侧胸腔少量积液；腹腔积液；4.心脏改变，请结合临床；5.双侧甲状腺钙化，请结合临床。双肺透过度不均，所示双肺支气管血管束增强、紊乱，管壁增厚，管腔变窄；左侧肺门区可见团块状高密度影，可见分叶征，边缘不光整，密度尚均匀，其内支气管截断，邻近支气管受压，较大层面大小约7.26CM×3.94CM，CT值约58HU。左肺下叶(44)、左肺上叶(30、20)、右肺上叶(25)可见多发磨玻璃密度影及结节影，界清，大者长径约1.36CM；右肺下叶背段(30)可见结节状致密影。右侧肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。双侧胸腔可见少量液体密度影。心影增大，主动脉壁及冠脉走形区可见条片状致密影。所示腹腔内可见大片状液体密度影。所示甲状腺双侧叶钙化影。</t>
-  </si>
-  <si>
-    <t>7.26CM×3.94CM</t>
-  </si>
-  <si>
-    <t>右肺上叶后段周围型肺癌，纵隔淋巴结转移。右肺上叶后段可见团块影，截面约2.50CM×2.12CM，CT值约32HU，增强有强化，三期CT值约53HU、68HU、47HU；病灶位于右肺门上区，腔静脉后及气管前可见团块影，截面约3.15CM×1.82CM，CT值约44HU。各大血管边界清晰。主动脉，肺动脉主干及其左右分支内造影剂密度均匀。</t>
-  </si>
-  <si>
-    <t>2.50CM×2.12CM,3.15CM×1.82CM</t>
-  </si>
-  <si>
-    <t>右肺下叶可见团块影，与右肺门影分界不清，边界欠清，CT值约为30HU，其内密度不均，大小约为6.3CM×3.9CM，邻近肺组织可见模糊影，右肺下叶内基底段支气管不通；双肺可见多发的大小不等的小结节影，大者径长约2.0CM；右肺斜裂增厚、右肺中叶条片状高密度影。纵隔内可见多发肿大的淋巴结。右侧胸腔、心包内见液性密度影。甲状腺明显肿大。左侧第6前肋局部密度增高。1.考虑右肺下叶肺癌，并双肺、右胸膜多发转移；2.右侧胸腔积液；心包积液；3.甲状腺大；4.左侧第6前肋局部密度增高。以上征象均较2015.04.30CT片相仿。</t>
-  </si>
-  <si>
-    <t>6.3CM×3.9CM</t>
-  </si>
-  <si>
-    <t>右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见肿大淋巴结，大者直径约0.5CM。左肺野示数个结节灶，大者直径约0.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺可见结节灶，直径约0.9CM。胆、胰、脾及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示溶骨性及混合性骨质破坏。1.结合临床，右乳癌术后，纵隔、双肺门淋巴结转移，左肺转移，较前2015-12-16变化不著；左肾上腺转移，较前略示好转；骨转移，较前成骨性成分增多，考虑略好转2.双肺炎症，变化不著3.心包积液4.肝囊肿</t>
-  </si>
-  <si>
-    <t>左肺,左肾上腺,胸腰椎,肋骨,纵隔、双肺门淋巴结</t>
-  </si>
-  <si>
-    <t>右肺下叶前基底段可见一不规则形肿块影，可见分叶，边缘不光滑，可见毛刺，周围可见血管集束征；平扫时CT值约为40HU，增强后呈明显不均匀强化，动脉期、静脉期及平衡期CT值分别约为101HU、78HU及71HU；病灶大小约为3.5CM×2.8CM；远端肺野内可见斑点状高密度影。右肺下叶可见囊状透光影，界清。所示气管支气管未见异常扩张；双肺门区未见异常。纵隔内可见增大淋巴结影，大者短径约为1.5CM；双侧胸腔未见积液征象；心脏及胸腔大血管未见异常密度影。所示甲状腺密度不均匀。1.右肺下叶前基底段肿块影，考虑为周围型肺癌，远端合并少许肺炎；2.支气管炎征象，右肺下叶单发肺大泡；3.右肺门、纵隔淋巴结转移；4.甲状腺密度不均匀，请结合临床。5.右下肺小结节，请随诊。</t>
-  </si>
-  <si>
-    <t>3.5CM×2.8CM</t>
-  </si>
-  <si>
-    <t>1、左肺门占位，考虑中央型肺癌伴阻塞性肺炎，左下肺动脉及静脉受累可能大；纵隔及左肺门淋巴结转移，与2015-10-14相比，肿块较前相仿，炎症较前进展；淋巴结较前稍增大；2、右肺多发粟粒灶，磨玻璃结节，与前相比，右肺下叶磨玻璃结节较前新发，右肺下叶一粟粒灶(32)较前新发，请结合临床，随诊；3、右肺炎症，较前新发；4、右肺下叶前基底段钙化灶；双侧胸膜增厚；5、左侧胸腔积液；心包少量积液，胸腔积液较前稍减少。左肺体积减小，左肺门区可见软组织团块影，边界不清，最大截面大小为4.0CM×4.2CM，密度不均，平扫CT值约为40HU，左肺下叶支气管闭塞，左肺上叶支气管局部不均匀变窄，左肺下叶明显膨胀不全，所示左肺透亮度减低，并见条索影。双肺可见多发斑片状高密度影，边缘模糊。右肺部分近胸膜处肺组织小叶间隔增厚，略呈网格状改变，右肺下叶前基底段可见小致密影，右肺另见散在粟粒影。右肺下叶可见(30)可见磨玻璃密度结节影，界清，径约0.6CM。纵隔及左肺门淋巴结肿大，大者短径为1.0CM，左侧胸膜增厚。左侧胸腔积液征象，左肺动脉显示不清，心包内少量液性密度影。</t>
-  </si>
-  <si>
-    <t>1.结合临床，右乳癌术后复发并右侧锁骨上、腋窝、胸肌后方、内乳区淋巴结转移2.左侧锁骨上区密度增高影，建议观察3.肝内低密度灶，转移不除外，肝内强化灶，不典型血管瘤不除外，建议MRI检查定性4.左肾囊肿5.小脑蚓部环状密度增高影，建议MRI检查定性6.胸椎局限性骨质稀疏，建议骨扫描定性右乳术后，术区可见多发软组织肿块影，部分隆起于表面，大者约1.4CM×2.4CM，增强扫描中等不均匀性强化。左乳未见异常。双肺清晰。右侧锁骨后方、右侧腋窝、胸肌后方、右侧内乳区可见软组织肿块影，大者短径约2.7CM，边界不清，轻度强化，部分与胸膜及肋软骨关系密切，局部肋软骨骨质略示稀疏。左侧锁骨上区可见片状密度增高影，边缘可见多发结节状钙化灶，增强扫描无明显强化。肝内似可见多发略低密度灶，边缘模糊。肝左右叶交界区似可见一结节状强化灶(9-46)，直径约0.6CM。左肾可见囊性密度灶。腹腔腹膜后未见肿大淋巴结。小脑蚓部可见一环状密度增高影(12-17)，直径约0.4CM。余脑实质未见显著异常。中线结构居中。骨窗部分胸椎椎体及附件骨质局限性稀疏。</t>
-  </si>
-  <si>
-    <t>右侧锁骨上、腋窝、胸肌后方、内乳区淋巴结,肝</t>
-  </si>
-  <si>
-    <t>右肺下叶后底段可见团块影，边界清晰，可见血管注入，最大层面3.47CM×2.57CM，CT值约48HU，增强后边缘略有强化，CT值57HU。气管隆突下见一增大淋巴结影，最大层面3.74CM×2.67CM，CT值在23-48HU之间，增强后环形强化，环形组织三期CT值分别是58HU、81HU、67HU。食管下段旁小淋巴结，环形强化。右肺上叶后段条带状阴影，最大层面1.68CM×0.73CM，CT值约10HU，增强22HU、33HU、41HU。两肺门区未见异常。所示气管支气管影正常。两胸腔无积液征象。心脏大血管未见异常。1.右肺下叶后底段占位，考虑恶性病变可能，气管隆突下增大淋巴结，转移性可能，请结合临床详查除外其他可能；2.右肺上叶后段条带状阴影，请结合临床详查。3.左上肺小絮状影，左下肺胸膜下小结节灶，请随诊。</t>
-  </si>
-  <si>
-    <t>右肺下叶后底段</t>
-  </si>
-  <si>
-    <t>3.47CM×2.57CM</t>
-  </si>
-  <si>
-    <t>气管隆突下增大淋巴结</t>
-  </si>
-  <si>
-    <t>1.左乳癌术后，肝脏多发转移瘤，较前2015-5-13变化不著；肝左叶胆管扩张2.右侧心膈角区淋巴结稍大3.左肺上叶含气囊肿4.双肾小囊肿左乳术后缺如，部分胸肌存在，术区未见明显增厚及异常强化；左侧腋窝术后，结构紊乱。右乳及右侧腋窝未见明确异常。左肺上叶可见类圆形过度充气区，边界清晰，余双侧肺野清晰，肺纹理正常，肺内未见实质性病变影。双侧各叶、段支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。胸腔内未见积液。胸廓诸骨未见骨质破坏。右侧心膈角区淋巴结稍大，短径约0.5CM。肝脏实质内可见多发低密度肿块及结节灶，大者直径约10.1CM，边界欠清，其内可见大片状低密度坏死区。肝左叶胆管轻度扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺形态、大小、密度未见异常。双肾实质内可见散在小囊性密度灶，大者直径约0.3CM，边界清晰，未见强化。腹腔及腹膜后未见增大淋巴结。</t>
-  </si>
-  <si>
-    <t>左肺癌并左肺多发、左胸膜、叶间裂及心包转移，较2011-02-21片进展，请结合临床。左下肺见不规则形软组织密度影，部分病灶相互融合，最大截面约7.30CM×5.50CM，CT值约49HU，左肺下叶支气管变窄，远端截断，左肺内可见多发大小不等类圆形高密度影；纵隔内可见稍增大的淋巴结影；左侧胸膜及叶间裂明显增厚，可见条形及结节样软组织密度影，左侧心隔角区可见多发结节影。</t>
-  </si>
-  <si>
-    <t>7.30CM×5.50CM</t>
-  </si>
-  <si>
-    <t>左肺,左胸膜,叶间裂,心包</t>
-  </si>
-  <si>
-    <t>1.右肺下叶后基底段团块灶，考虑恶性占位性病变，周围型肺癌可能性大，伴双肺多发转移，较前2016-05-112CT相仿；2.部分胸椎骨密度增高，较前相仿。右肺下叶肿块，边缘毛刺，邻近胸膜牵拉，大小约为2.44CM×1.8CM，CT值约10HU，增强扫描扫描示病灶三期CT值分别约为38HU、60HU、46HU。双肺内可见多发结节样及粟粒样密度影，大者径约0.75CM。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。部分上位胸椎骨密度增高。右乳腺钙化灶。</t>
-  </si>
-  <si>
-    <t>2.44CM×1.8CM</t>
-  </si>
-  <si>
-    <t>结合病史，右乳癌累及右侧乳头、右腋窝淋巴结转移治疗后，较前(2014-06-19)MR片示好转。右乳头后方见一不规则异常信号影，边缘分叶、毛糙，局部累及右乳头致其凹陷，邻近皮肤略示增厚，表现为T1WI低信号，T2WI高信号，T2压脂序列高信号，DWI呈高信号，增强扫描可见显著强化，大小约1.5CM×1.7CM×2.0CM，时间-信号强度曲线为平台型。左乳增强前后未见异常。所扫双侧腋窝未见明显肿大淋巴结。余未见异常。</t>
-  </si>
-  <si>
-    <t>1.5CM×1.7CM×2.0CM</t>
-  </si>
-  <si>
-    <t>右侧乳头,右腋窝淋巴结</t>
-  </si>
-  <si>
-    <t>双侧胸廓不对称，右侧胸廓塌陷，右肺体积减小，右肺下叶见团块状高密度影，形态不规则，边界不清楚，大小约4.1CM×5.4CM，CT值约37HU，右侧主支气管及各叶支气管受压变窄；右侧胸膜弥漫性增厚，右肺间隔结节样增厚；右侧胸腔可见包裹性积液；右侧腋窝、纵隔淋巴结增大，大者短径约1.39CM。左肺下叶外基底段(S35)可见粟粒影。心影大小正常范围。右侧第2、4、7、8肋骨、胸3椎体骨质密度不均匀增高，形态不规整。右侧乳腺外上象限内见一结节影，径约0.98CM，边界清晰，其内见点状钙化。1.右下肺中心型肺癌，较前片(2013-9-9)进展，并右肺间质性改变，考虑淋巴道转移，右侧胸膜转移，右侧胸腔包裹性积液；右侧腋窝及纵隔淋巴结转移；右侧多个肋骨、胸3椎体成骨性转移；请结合临床；2.右乳钙化结节，较前相仿；3.左肺下叶外基底段粟粒灶，较前相仿。</t>
-  </si>
-  <si>
-    <t>4.1CM×5.4CM</t>
-  </si>
-  <si>
-    <t>右侧胸膜,右侧腋窝、纵隔淋巴结,淋巴道,右侧多个肋骨,胸3椎体</t>
-  </si>
-  <si>
-    <t>右肺下叶可见不规则软组织密度影，与右肺门分界不清，边缘毛糙，分叶状，长径约为1.6CM×1.5CM，右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影，部分边缘毛糙；纵隔内未见增大淋巴结影。心包内见少许液性密度影。甲状腺增大。1.考虑右肺下叶肺癌，并双肺、右胸膜多发转移；较前CT(2016-01-05)右肺下叶肿块影略小，余较前片相仿。2.心包积液；3.甲状腺大；请结合临床。</t>
-  </si>
-  <si>
-    <t>1.6CM×1.5CM</t>
-  </si>
-  <si>
-    <t>1.双肺间质性改变；右侧少量胸腔积液，较2016-11-17增多；双肺粟粒灶，随诊；2.右肺中叶索条灶，慢性炎症可能，较前略吸收；3.右侧乳腺肿物，考虑为恶性病变，较前稍变小；右侧腋窝淋巴结肿大；4.右侧第7后肋、第4、9胸椎骨质破坏，转移瘤可能性大，较前进展，请结合临床；5.双侧多发肋骨骨折。双肺纹理增强，紊乱。右肺中叶可见高密度索条影，边缘模糊不清。右肺上叶(43、39、37)、左肺上叶(23)粟粒灶。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。右胸腔少量积液征象。心脏大血管未见异常。所示右侧乳腺见较大肿物，密度不均，大小为4.66CM×3.53CM，CT值约44HU。右侧第7后肋、第4、9胸椎骨质破坏，边缘模糊。双侧多根肋骨骨质连续性中断。</t>
-  </si>
-  <si>
-    <t>4.66CM×3.53CM</t>
-  </si>
-  <si>
-    <t>右侧第7后肋,第4、9胸椎</t>
-  </si>
-  <si>
-    <t>左乳术后缺如，部分胸肌存在，术区皮肤及软组织略增厚，增强后不均匀强化；左侧腋窝术后，见多发淋巴结，大者短径约0.6CM。右乳及右侧腋窝未见明确异常。左侧内乳区见短径不足0.5CM小淋巴结。左肺上叶胸膜下可见类结节灶，直径约0.2CM。左肺可见斑片状影。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。胸腔内未见积液。胸廓诸骨未见骨质破坏。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺未见异常。腹膜后见短径不足0.5CM小淋巴结。部分椎体密度减低。1.左乳癌术后复发并左腋窝多发淋巴结转移，较前(2017-2-15)变化不著；左侧内乳区小淋巴结较前变化不著。2.左肺类结节灶，较前变化不著。3.腹膜后小淋巴结较前变化不著。4.椎体部分密度减低变化不著。</t>
-  </si>
-  <si>
-    <t>1.右肺中央型肺癌，伴右肺上叶阻塞性肺炎、淋巴结多发转移；较2012-02-01CT新发，邻近右上肺动脉分支受压；右肺下叶炎症，较前新发；2.左肺下叶肺隔离症伴炎症，较前相仿；3.左肺上叶代偿性肺气肿表现，较前相仿；4.肝右叶后下段低密度灶，请结合其它检查。右上叶支气管截断，肺门处可见团块影，界清，其内密度不均，见斑片状稍低密度灶，大小约3.2CM×2.8CM，平扫CT值约33HU，增强扫描呈轻度不均匀强化，三期CT值分别为：66HU、51HU、63HU，邻近右上肺动脉分支受压、略移位；右肺上叶病变远端支气管腔增粗、管腔内密度增高，肺内散在片状高密度影；右肺下叶胸膜下见少许斑片状模糊影；左肺下叶前内基底段、外基底段可见斑片模糊影，增强后，病灶内可见一异常血管起自于胸主动脉，最粗径约0.94CM，左肺上叶透过度明显增强。纵隔内可见多发肿大淋巴结，大者短径约1.9CM，增强呈轻度不均匀强化。两胸腔无积液征象。心脏形态可。肝右叶后下段低密度灶。</t>
-  </si>
-  <si>
-    <t>3.2CM×2.8CM</t>
-  </si>
-  <si>
-    <t>淋巴结</t>
-  </si>
-  <si>
-    <t>所示右侧乳腺组织缺如，右乳腺区及右肺上叶近纵隔区见类圆形及团片状肿块影，最大径约6.0CM，CT值37HU，边界不清，周边见片状模糊影，右内乳动脉区、纵隔及颈部见多发肿大淋巴结，部分似见融合。双肺内见多发大小不一类圆形高密度影，大者径约1.91CM。左室增大，大血管管壁未见钙化。双侧胸腔未见液体密度影。胸骨骨质欠规整，内可见结节状高密度影。所示层面肝脏见多发片状低密度影。对比2012-09-05胸部CT：1.右乳腺癌术后复发改变，右内乳淋巴结、纵隔及两侧颈部多发淋巴结转移，双肺多发转移，胸骨转移，右侧胸壁软组织转移，较前片病变明显进展，右肺上叶近纵隔区转移灶较前范围区域明显变大，请结合临床；2.左心室大；4.肝脏病变，结合腹部CT详查。</t>
-  </si>
-  <si>
-    <t>6.0CM</t>
-  </si>
-  <si>
-    <t>右肺上叶近纵隔区,双肺,胸骨,右内乳淋巴结,纵隔及两侧颈部多发淋巴结,右侧胸壁软组织</t>
-  </si>
-  <si>
-    <t>双肺纹理增强、紊乱，局部支气管壁增厚，边缘模糊。双肺透过度增高，可见多发小圆形透亮影；左肺上叶钙化灶。右肺门略增大，可见少许软组织密度影包绕右肺门区支气管血管束，平扫CT值约43HU，增强扫描呈轻中度强化。支气管管壁增厚，管腔略变窄。主动脉肺窗内见增大的淋巴结，边界模糊，短径约2.5CM，增强扫描呈环形强化，内部有无强化区。所示胆囊体积明显增大，其内可见结节状致密影，径约1.29CM。所示脾脏前端可见小圆形等密度影，增强扫描呈均匀强化。与2015-03-03CT相比：1.右肺中央型肺癌，较前肿块减小，显示欠清，纵隔淋巴结转移，较前相仿；2.慢性支气管炎、肺气肿改变；3.胆囊结石，副脾，均较前相仿，请结合腹部检查。</t>
-  </si>
-  <si>
-    <t>左上中央型肺癌，纵隔及左肺门淋巴结转移不除外，较2015-11-17CT病变稍增大，请结合临床。左上肺门处可见肿块影，分叶状，大小为4.4CM×2.8CM，形状不规则，边缘清，与肺动脉分界不清，CT值为34HU，增强扫描三期CT值分别为73、61、63HU，均匀中度强化，包绕左肺动脉，左肺上叶舌段支气管稍狭窄，纵隔及左肺门可见多发肿大淋巴结，大者短径为1.2CM。两胸腔无积液征象。心脏大血管未见异常。</t>
-  </si>
-  <si>
-    <t>4.4CM×2.8CM</t>
-  </si>
-  <si>
-    <t>1.右肺中央型肺癌伴远端肺组织阻塞性肺炎；纵隔淋巴结肿大，考虑转移可能；2.肺气肿；3.左肺上叶磨玻璃结节，随诊；4.左肺上叶肺大泡；5.主动脉及冠状动脉内钙化；6.肝内及右肾多发囊肿；7.左侧肾上腺占位，不除外转移可能。右肺门增大，右肺上叶可见团块状高密度影，大小约5.88CM×5.89CM，平扫CT值约29HU，增强扫描强化不均匀，三期CT值约58HU、56HU、44HU，右肺上叶支气管狭窄，远端肺组织内可见片状稍高密度模糊影；双肺上叶透过度不均匀增高；左肺上叶尖段(216)可见小结节状磨玻璃密度影，边界较清；左肺上叶舌段可见类圆形薄壁透亮影，径约0.68CM。纵隔内可见肿大淋巴结影，径约1.83CM。两胸腔未见积液征象。心脏形态大小正常，其内未见异常密度影；主动脉及冠状动脉走行区可见条状钙化密度影；肝内及右肾可见多发类圆形低密度影，边界清楚，增强扫描未见强化。左侧肾上腺可见结节状低密度影，径约1.4CM，平扫CT值约6HU，增强扫描三期CT值约85HU、66HU、38HU，</t>
-  </si>
-  <si>
-    <t>5.88CM×5.89CM</t>
-  </si>
-  <si>
-    <t>纵隔淋巴结,左侧肾上腺</t>
-  </si>
-  <si>
-    <t>1.胃窦壁厚，较前相仿，考虑胃癌，胃周及腹膜后多发淋巴结转移；2.肝包膜下钙化灶；脾多发钙化灶；3.胆囊颈结石，胆囊炎；4.左肾囊肿；5.腹盆腔积液，较前略增多。肝右叶包膜下见点状致密影。胆囊不大，壁厚，胆囊颈部见结节状稍高密度影，最大截面大小约0.4CM×0.7CM。脾不大，脾内及脾包膜下见多发点状及结节状致密影。胰腺大小形态未见明显异常。胃窦部胃壁可见结节状增厚，CT值约38HU；胃周及腹膜后可见多发小淋巴结，较大者短径约0.9CM。双肾大小正常，左肾见多发低密度灶，CT值约4HU。膀胱充盈尚可，其内未见明显异常密度灶。子宫及附件未见明显异常。腹腔肠管未见明显扩张。腹盆腔内见少量液体密度影。所示双侧腹股沟区多发淋巴结影。</t>
-  </si>
-  <si>
-    <t>胃窦</t>
-  </si>
-  <si>
-    <t>左肺下叶背段可见团块影，较大截面大小约为5.71CM×3.91CM，平扫CT值约为39HU，边界尚清，浅分叶状，周围可见斑片状稍高密度影。双肺另见弥漫多发大小不等结节影。两肺门区未见异常。纵隔内未见淋巴结增大。两侧胸腔内可见弧形液体密度影。心脏大血管未见异常。右侧部分肋骨形态欠规整。第11胸椎右侧附件区骨质破坏，并见软组织肿块。1.左肺下叶背段周围型肺癌，较前略大，伴双肺多发转移瘤，第11胸椎右侧附件区骨转移；2.右侧部分肋骨陈旧性骨折改变；3.第11胸椎右侧附件区骨质破坏，并见软组织肿块，较前相仿；4.双侧胸腔积液，较前片2015-11-19新发。</t>
-  </si>
-  <si>
-    <t>5.71CM×3.91CM</t>
-  </si>
-  <si>
-    <t>双肺,第11胸椎右侧附件区</t>
-  </si>
-  <si>
-    <t>结肠脾曲肠壁增厚，管腔狭窄，浆膜面模糊，近端结肠扩张，内见气液平面。肝内见类圆形水样密度影，大者直径约为2.4CM；肝左内叶可见类圆形低密度影，径约0.8CM，CT值约34HU。脾脏、胰腺、两肾形态大小正常，内未见异常密度影。胆囊未见明显异常。膀胱充盈良好，其内未见异常密度影，双侧输尿管不扩张。前列腺可见片状钙化影。腹膜后未见异常增大的淋巴结影。1、结肠脾曲占位，较前(2013-09-11)新发，考虑结肠癌；结肠梗阻；2、肝内低密度灶，较前新发，考虑转移瘤；肝囊肿；3、前列腺钙化灶。</t>
-  </si>
-  <si>
-    <t>结肠脾曲</t>
-  </si>
-  <si>
-    <t>1.结合临床，左乳癌治疗后改变，胸肌局部强化灶，较前(2017-1-6)增大；左腋窝及左锁骨上小淋巴结；肝转移治疗后，变化不著；骨转移，变化不著2.右乳钙化灶；右腋窝略增大淋巴结，变化不著3.双肺纤维灶4.甲状腺低密度灶左乳结构紊乱，强化欠均质，局部见可见片状较低密度灶，边缘清晰，左腋窝结构紊乱并可见片状影，左腋窝(5-21)及左侧锁骨上示大者短径约0.5CM小淋巴结。左侧胸肌局部见结节状强化灶，边缘模糊。右乳可见数个大小不一的钙化灶，右腋窝内可见数个结节灶，大者短径约0.6CM。双肺内示少许索条影。纵隔内未见明显肿大淋巴结。甲状腺内示低密度灶。肝内S4段示一低密度灶，边缘有强化，直径约0.6CM。余肝内示小类囊性密度灶。胆囊胰脾双肾未见异常。腹腔及腹膜后未见肿大淋巴结。胸骨、部分椎骨及左第五后肋显示骨质破坏。</t>
-  </si>
-  <si>
-    <t>肝,胸骨,椎,左第五后肋</t>
-  </si>
-  <si>
-    <t>肝内胆管扩张，胆总管明显增粗，其内可见结节样致密影，大者直径约2.7CM，十二指肠降段肠壁明显增厚，CT值约38HU，增强CT扫描：三期CT值分别为77HU、102HU、80HU，邻近脂肪间隙模糊；肝脏、脾脏、胰腺形态大小正常，内未见异常密度影。双肾多发小圆形未强化结节影；胆囊未见异常。膀胱充盈良好，其内未见异常密度影，双侧输尿管不扩张。子宫未见确切显示；腹膜后未见异常增大的淋巴结影。腹腔内肠管未见异常扩张。右侧肾上腺可见肿块影，大小约4.7CM×3.6CM，CT值约31HU，增强CT扫描：三期CT值分别为100HU、106HU、104HU。盆腔少量液体密度影。1.十二指肠降部占位，考虑恶性肿瘤(间质瘤可能)，随诊；2.胆总管结石，并胆系扩张；3.右侧肾上腺占位，考虑恶性，转移可能，嗜铬细胞瘤待除外，请结合临床；4.盆腔少量积液。</t>
-  </si>
-  <si>
-    <t>十二指肠降部</t>
-  </si>
-  <si>
-    <t>右侧肾上腺</t>
-  </si>
-  <si>
-    <t>右下肺门区可见一直径4.1CM大小的肿块，密度均匀，CT值为15HU，增强后约46、40HU；下叶支气管管腔消失，其周围结构被肿块侵犯。右肺下叶可见斑片影，边界模糊不清。隆突下淋巴结明显增大，短径约2.3。双侧胸腔未见积液征象。1.右下肺中央型肺癌合并阻塞性炎症，纵膈淋巴结转移；2.肺气肿。</t>
-  </si>
-  <si>
-    <t>4.1CM</t>
-  </si>
-  <si>
-    <t>右肺下叶可见软组织密度肿块影，大小约为5.1CM×4.0CM，CT值约为10-36HU；双肺可见多个小结节影与粟粒影；右肺上叶可见致密钙化灶；右胸腔积液征象；心脏大血管未见异常。左侧肩胛骨可见骨质破坏，双侧多个肋骨、胸椎密度不均匀。1.右肺下叶恶性肿物，双肺多个小结节与粟粒灶，右侧胸腔少量积液；2.左侧肩胛骨骨质破坏，双侧多个肋骨、胸椎密度不均匀，均为骨转移改变；3.右肺上叶钙化灶。</t>
-  </si>
-  <si>
-    <t>5.1CM×4.0CM</t>
-  </si>
-  <si>
-    <t>左侧肩胛骨,双侧多个肋骨,胸椎</t>
-  </si>
-  <si>
-    <t>1.左肺下叶磨玻璃密度影，对比2011.5.17片密度略变实，考虑周围型肺(腺)癌；2.左肺上叶炎性病变，较前相仿；3.左侧肾上腺低密度灶，不除外转移，详查。左肺下叶后基底段可见一磨玻璃密度影，边界不清，最大层面大小约1.6CM×2.0CM，与胸膜相连，其内密度不均，周围见索条；左肺上叶可见条索影。双肺纹理增粗、紊乱，两肺门区未见异常。所示气管支气管影正常。纵隔内可见稍大淋巴结影。两胸腔无积液征象。动脉内壁、冠状走形区可见多发线样高密度影。左侧肾上腺可见一结节样低密度影，大小为1.8CM×2.0CM，CT值为-9HU。</t>
-  </si>
-  <si>
-    <t>1、右肺上叶中心型肺癌，纵隔内及右肺门多发淋巴结转移；2、右肺下叶基底段小结节，考虑陈旧灶，请随诊；3、左肺术后改变。右肺上叶可见类圆形软组织肿块影，边缘不规整，病灶边缘可见毛刺，大小约9.22CM×6.44CM，CT值约35HU；增强扫描可见不规则强化，三期CT值约45HU，73HU，78HU，中心可见片状条状低密度影。右肺上叶支气管可见阻塞狭窄征象。右肺下叶外基底段可见结节状密度增高影，边界欠清，长径约0.52CM；左肺体积变小，左肺可见多个条索状密度增高影，边界不清；双肺纹理增强，两肺门大小、形态未见明显异常。纵隔内及右侧肺门可见多个肿大淋巴结影，心影不大，大血管管壁可见钙化。左侧胸膜可见明显增厚，未见胸腔积液征象。左侧第4肋形态欠规整。</t>
-  </si>
-  <si>
-    <t>9.22CM×6.44CM</t>
-  </si>
-  <si>
-    <t>纵隔内及右肺门多发淋巴结</t>
-  </si>
-  <si>
-    <t>1.结合临床，左乳癌术后改变；右肺结节灶，建议观察；胸骨骨质密度增高，考虑转移，建议观察2.左肺下叶炎症3.脂肪肝4.颅脑扫描未见明显异常左乳术后缺如，胸肌尚存，术区未见明显增厚及强化。右肺内见结节灶，大者直径约1.3CM。左肺下叶胸膜下见斑片状密度增高影。纵隔内未见肿大淋巴结影。胸膜无增厚，胸腔内未见积液征象。扫描野内肝脏实质密度均匀性减低，大小形态可，未见异常密度灶。脑实质密度正常，未见明显异常密度灶及强化灶。脑室、池无扩张，中线结构居中，颅骨诸骨质未见破坏。胸骨骨质密度增高。</t>
-  </si>
-  <si>
-    <t>胸骨</t>
-  </si>
-  <si>
-    <t>左肺上叶近纵隔旁见团片状软组织影，最大截面大小约为4.02CM×6.56CM，肿块与纵隔分界不清，平扫CT值约35HU，左肺上叶支气管截断，左主支气管不规则变窄，管腔内可见结节状软组织密度影。右肺上叶后段可见一结节，径约0.5CM；左肺上叶可见大片状影，边缘模糊。右肺下叶可见多发结节状影，大者直径约为0.85CM。双肺纵隔旁及胸膜下见多个条索状及斑片状高密度影。腔静脉间隙、主动脉弓旁、气管隆突上纵隔及左肺门多发结节状软组织影，密度欠均匀，见小斑片状高密度影，部分融合。左侧胸腔少量液体密度影。主动脉壁可见条状钙化。1.左肺上叶肺癌并左肺上叶阻塞性炎症，并左肺门及纵隔淋巴结转移，较前片2013-06-24进展，左主支气管受侵；右肺下叶多发结节，较前新发，密切随诊除外转移可能；2.右肺上叶小结节，与前相仿；3.双肺纵隔旁及胸膜下斑片影，较前未见明显变化；4.左侧胸腔积液。</t>
-  </si>
-  <si>
-    <t>左肺上叶近纵隔旁</t>
-  </si>
-  <si>
-    <t>4.02CM×6.56CM</t>
-  </si>
-  <si>
-    <t>右肺下叶可见团块影，与右肺门影分界不清，边界欠清，CT值约为29HU，其内密度不均，大小约为8.9CM×4.8CM，邻近肺组织可见模糊影，右肺下叶内基底段支气管不通。双肺可见多发的大小不等的小结节影，大者径长约1.9CM；右肺斜裂增厚、右肺中叶条片状的高密度影。纵隔内可见多发肿大的淋巴结。两胸腔积液征象，右侧显著。心包积液。甲状腺明显肿大。右侧胸壁下可见结节影，径约1.1CM。左侧第6前肋局部密度增高。1.考虑右肺下叶周围型肺癌可能，双肺多发转移，右胸膜转移，较2015-01-20CT进展，请结合临床；2.双胸腔积液，右胸腔引流术后改变；心包积液；3.甲状腺大；4.左侧第6前肋局部密度增高，较前相仿；请结合临床。</t>
-  </si>
-  <si>
-    <t>8.9CM×4.8CM</t>
-  </si>
-  <si>
-    <t>1.右上中心型肺癌并阻塞性肺炎，纵隔淋巴结转移，较前(2016-09-02)相仿；2.右肺上叶结节，较前相仿，请随诊；3.左肺上叶舌段、右肺下叶炎症，较前片变小；4.双侧胸腔积液，较前片减少；5.双肺上叶肺气肿。右上肺门旁可见结节影，大小约3.8CM×2.3CM，平扫CT值约39HU，右肺上叶支气管受压、变窄，边缘可见细短毛刺；右肺上叶(44)可见不规则结节影，大小约1.4CM×0.9CM。双肺支气管血管束增强，左肺上叶舌段、右肺下叶斑片影。右肺门区饱满。所示气管支气管影通畅。双肺上叶见多发低密度囊腔。纵隔内可见增大的淋巴结，大者短径约1.9CM。两胸腔可见液性密度影。心脏大血管未见异常。</t>
-  </si>
-  <si>
-    <t>3.8CM×2.3CM</t>
-  </si>
-  <si>
-    <t>右肺下叶背段(37)可见粟粒影。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。两胸腔未见积液征象。主动脉壁及冠脉壁见弧形高密度影。右乳体积明显增大，内见多发团块影，边界尚清，大者大小约6.6CM×6.0CM，CT值约11HU；右侧胸大肌形态改变，边缘毛糙；左乳内见斑点状致密影。右侧锁骨上区、下区及双侧腋窝可见多发肿大淋巴结影，大者短径约1.7CM。1.右肺下叶粟粒灶，较前相仿；2.右侧乳腺癌，肿块较前明显增大；右侧锁骨上区、下区及双侧腋窝多发淋巴结转移；右侧胸大肌形态改变，考虑受侵；3.左乳内钙化灶，详查。</t>
-  </si>
-  <si>
-    <t>6.6CM×6.0CM</t>
-  </si>
-  <si>
-    <t>右侧锁骨上区、下区及双侧腋窝多发淋巴</t>
-  </si>
-  <si>
-    <t>1.左侧胸膜恶性肿瘤，双肺、胸3椎体及纵隔淋巴结转移，对比2012.5.11片胸膜病变进展；2.右肺上叶肺大泡。左肺肋胸膜、膈胸膜、斜裂胸膜广泛明显增厚，最厚约3.25CM，CT值约38HU。两肺纹理增强，双肺野内见多发大小不等密度增高影，部分呈磨玻璃密度改变，大者约0.94CM×1.64CM；右肺上叶尖段见囊状透过度增高区。两肺门区未见异常。所示气管支气管影正常。纵隔内见多发小淋巴结影，大者短径0.84CM。两胸腔无积液征象。主动脉管壁见钙化影。胸3椎体见结节样致密影。</t>
-  </si>
-  <si>
-    <t>3.25CM</t>
-  </si>
-  <si>
-    <t>1.左肺中央型肺癌伴双肺转移、左侧第4-6肋骨转移，左肺下叶不张；2.左侧胸腔积液。左肺下叶基底段可见一软组织肿块影，边界清楚，密度欠均匀，最大层面6.07CM×6.58CM，CT值约47HU。左肺下叶基底段支气管截断。左肺下叶不张。左肺内可见多发团块影，右肺中叶可见一小结节影。纵隔左移，纵隔内可见多发稍大的淋巴结，大者长径约1.88CM。左侧胸腔内可见弧形液性密度影，CT值约66HU。心脏大血管未见异常。左侧第4-6后肋骨质不规整，并可见骨质破坏影。</t>
-  </si>
-  <si>
-    <t>左肺下叶基底段</t>
-  </si>
-  <si>
-    <t>6.07CM×6.58CM</t>
-  </si>
-  <si>
-    <t>双肺,左侧第4-6肋骨</t>
-  </si>
-  <si>
-    <t>右肺上叶尖段支气管闭塞，前段及后段支气管管壁略厚，管腔狭窄，可见团块状稍高密度影，大小约7.7CM×5.5CM，可见浅分叶，边缘可见细短毛刺，CT值约22HU，右上支气管受压变窄，增强后扫描呈不均匀强化，三期CT值分别为69HU、49HU、43HU，右上肺动脉变窄，远端显示欠清，上腔静脉管腔狭窄，其内可疑充盈缺损；右肺中叶、下叶、左舌段可见索条灶，左肺下叶见片状高密度影；左肺下叶近斜裂(37)可见小结节影，径约0.4CM。双肺见多发局限性透亮影。纵隔内可见增大的淋巴结，部分融合，短径约2.6CM；右侧锁骨上淋巴结增大，大者短径约1.12CM。两胸腔无积液征象，右侧胸膜局限性增厚。心包内可见条形液体密度影，大血管未见异常。双侧腋窝内多发稍大淋巴结影，大者短径约0.7CM。1.右肺上叶团块影，考虑中央型肺癌，纵隔、右侧锁骨上淋巴结转移；右上肺动脉变窄；上腔静脉管腔狭窄，可疑瘤栓；较前CT片(2012-07-02)明显增大，请结合临床；2.肺气肿；双肺索条灶；左肺下叶炎症；3.心包积液；4.左侧斜裂小结节，较前相仿，请随诊。</t>
-  </si>
-  <si>
-    <t>7.7CM×5.5CM</t>
-  </si>
-  <si>
-    <t>双肺可见多发的大小不等的小结节影。右肺中叶、下叶、左肺上叶舌段可见片状的高密度影。右肺下叶可见团块影，CT值约为36HU，长径约为4.45CM。两肺纹理清晰。所示气管支气管影正常。两肺门、纵隔内可见多发肿大的淋巴结。两胸腔积液征象。心包积液。甲状腺明显肿大。右侧第四肋根部可见密度增高影。1.右肺下叶病变，考虑周围肺癌，双肺多发转移瘤，双肺门、纵隔淋巴结转移；2.双胸腔积液，心包积液；3.右肺中叶、下叶、左肺上叶舌段炎症；4.右侧第四肋根部密度增高影，请结合临床。</t>
-  </si>
-  <si>
-    <t>4.45CM</t>
-  </si>
-  <si>
-    <t>右肺上叶尖段可见分叶状肿块，最大横断面径约3.6CM×2.7CM，其内密度尚均匀，CT值54HU，增强扫描可见不均匀强化，三期CT值为54、67、75HU，部分区域强化不明显，周围可见毛刺及血管集束，右肺上叶前段可见索条灶，右肺中叶内侧段及左肺舌叶可见结节影，余双肺支气管血管束增粗，胸膜下可见网格影及胸膜下线、间隔旁肺气肿。两肺门区未见异常。所示气管支气管通畅。纵隔内可见增大的淋巴结。两胸腔无积液征象。冠脉可见钙化灶。双侧胸膜增厚。右侧第2、3胸椎椎体及附件、第2肋骨质破坏并软组织肿块形成，右侧第8、9肋、下位胸椎骨骨质破坏，右侧第3-6肋骨陈旧骨折。1.右肺上叶尖段周围型肺癌，纵隔淋巴结转移，多个胸椎与多发肋骨转移；2.右肺上叶前段索条灶；右肺中叶及左肺上叶多发结节，随诊；3.双肺间质纤维化；双侧胸膜肥厚；4.胆囊结石。</t>
-  </si>
-  <si>
-    <t>右侧第2、3胸椎椎体及附件,第2肋骨,右侧第8、9肋,下位胸椎,纵隔淋巴结</t>
-  </si>
-  <si>
-    <t>1.结合临床，左乳癌术后，多发骨转移2.肝右后叶片状密度增高影，考虑动静脉瘘形成3.胆囊结石4.左侧肾上腺结节灶，请结合前片，转移待排，建议密切观察左乳术后，术区结构紊乱，术区未见结节及异常强化灶。左侧腋窝结构紊乱。右乳未见异常。双侧内乳区、双侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰，未见结节及异常强化灶。肝右后叶内见片状密度增高影，其强化方式与同层腹主动脉相似。胆囊充盈可，其内见点状致密影。胰、脾、右侧肾上腺及扫描范围内双肾未见异常。左侧肾上腺见软组织结节灶，短径约1.3CM，增强后轻度强化。骨窗示胸骨、右侧肋骨及T12胸椎椎体示混合性骨质破坏。</t>
-  </si>
-  <si>
-    <t>左侧肾上腺,胸骨,右侧肋骨,T12胸椎</t>
-  </si>
-  <si>
-    <t>1.左肺术后改变；2.左残肺肿块，考虑复发可能，与2014-06-06CT片对比，病灶范围增大；3.双肺多发粟粒灶及结节，考虑多发转移，较前病灶数目增多，范围增大；4.气管前肿大淋巴结，较前略增大；5.心包略增厚；6.胸12椎体内高密度灶，随诊。左肺体积减小，部分肺组织及支气管缺如，纵隔左偏；左残肺近纵隔旁见肿块影及线样致密影，边缘呈分叶征，其内可见截断支气管影，肿块最大截面约为4.43CM×5.58CM，CT值约为36HU，邻近胸膜增厚。双肺多发小粟粒影及磨玻璃密度结节影，边缘模糊，大者最大径约为0.57CM。气管前腔静脉后可见一肿大淋巴结，最大截面约为2.06CM×1.16CM。两胸腔无积液征象。主动脉及冠状动脉走形区可见条形钙化影，心包略增厚。所示胸12椎体内可见结节样致密影。</t>
-  </si>
-  <si>
-    <t>1.左肺上叶舌段中心型肺癌，伴远端阻塞性炎症、纵隔及双肺门淋巴结转移，与2011-10-20CT比较病灶略增大，周围炎症略吸收，请结合临床；2.支气管炎征象，轻度肺气肿，肺大泡；3.双肺多发钙化灶；4.右侧胸腔及心包轻度积液；5.肝脏多发稍低密度影，请结合临床。左肺上叶舌段不规则形软组织密度影，边界清楚且呈分叶状改变，大小约：8.59CM×3.52CM，CT值约：40HU，左肺上叶舌段支气管狭窄、截断，远端片状高密度影，边界模糊；右肺尖小结节，径约：0.52CM；双肺多发囊状低密度影，以左肺上叶胸膜下为著；双肺纹理稍增多，边缘欠清。双肺多发钙化灶；两肺门及纵隔内见多发增大的淋巴结，较大者约3.70CM。心脏不大；心包及右侧胸腔可见少许水样密度影。肝脏似可见多发稍低密度影。</t>
-  </si>
-  <si>
-    <t>8.59CM×3.52CM</t>
-  </si>
-  <si>
-    <t>1.右下肺中心型肺癌，较前片(2013-9-9)进展，并右肺间质性改变，考虑淋巴道转移，右侧胸膜转移，右侧胸腔包裹性积液；右侧腋窝及纵隔淋巴结转移；右侧多个肋骨、胸3椎体成骨性转移；请结合临床；2.右乳钙化结节，较前相仿；3.左肺下叶外基底段粟粒灶，较前相仿。双侧胸廓不对称，右侧胸廓塌陷，右肺体积减小，右肺下叶见团块状高密度影，形态不规则，边界不清楚，大小约4.1CM×5.4CM，CT值约37HU，右侧主支气管及各叶支气管受压变窄；右侧胸膜弥漫性增厚，右肺间隔结节样增厚；右侧胸腔可见包裹性积液；右侧腋窝、纵隔淋巴结增大，大者短径约1.39CM。左肺下叶外基底段(S35)可见粟粒影。心影大小正常范围。右侧第2、4、7、8肋骨、胸3椎体骨质密度不均匀增高，形态不规整。右侧乳腺外上象限内见一结节影，径约0.98CM，边界清晰，其内见点状钙化。</t>
-  </si>
-  <si>
-    <t>淋巴道,右侧胸膜,右侧腋窝及纵隔淋巴结,胸3椎体,右侧第2、4、7、8肋骨</t>
-  </si>
-  <si>
-    <t>左上肺门处可见肿块影，分叶状，大小为3.18CM×3.19CM，形状不规则，边缘清，与肺动脉分界不清，CT值为42HU，增强扫描三期CT值分别为62、66、66HU，均匀轻度强化，包绕左肺动脉，左肺上动脉未见显示，纵隔及左肺门可见多发肿大淋巴结，大者短径为0.93CM。左侧胸膜牵拉凹陷。两胸腔无积液征象。心脏大血管未见异常。左上肺门中央型肺癌，阻塞左上肺动脉，纵隔及左肺门淋巴结转移不除外，较2015-09-29CT左上肺门旁病变略减小，余较前相仿。</t>
-  </si>
-  <si>
-    <t>3.18CM×3.19CM</t>
-  </si>
-  <si>
-    <t>1.考虑左肺下叶中心型肺癌并左肺下叶阻塞性肺不张，较2015-3-23片肿瘤增大，左肺门及纵隔内淋巴结转移较前相仿，左侧胸腔积液较前新发；2.双肺多发磨玻璃密度结节，较前相仿，转移不除外；3.右肺尖陈旧性病灶；4.肺气肿。左肺下叶可见一肿块影，与胸膜分界不清，最大截面大小约为7.0CM×8.3CM，其内密度不均，可见低密度影及点状致密影，CT值约为22HU-53HU，病灶邻近部分支气管变窄、左肺下叶支气管走形截断。右肺尖可见结节影，径约1.35CM，邻近胸膜凹陷，其内可见条样致密影。双肺可见多个散在高密度及磨玻璃样密度结节，大者径约0.8CM。双肺密度不均匀减低，可见多个小圆形低密度影。左肺门、纵隔内可见多发肿大淋巴结影，大者短径约为1.9CM。左侧胸腔可见弧形液体密度影。主动脉、冠状动脉走行区可见弧形致密影。所示诸骨未见骨质密度明显异常改变或骨质破坏征象。</t>
-  </si>
-  <si>
-    <t>7.0CM×8.3CM</t>
-  </si>
-  <si>
-    <t>1.纵隔右侧占位，合并淋巴结转移，考虑侵袭性胸腺瘤；支气管炎征象；右侧胸腔积液；较前2015-07-08CT新发；2.左肺下叶磨玻璃灶，较前相仿，请结合临床；双肺多发粟粒灶，部分钙化，较前相仿；3.下位胸椎体内高密度影，较前相仿。双肺血管支气管束增强、模糊。双肺见多个斑点状粟粒影，部分呈致密影。左肺下叶内基底段(H101)见一磨玻璃影，大小为1.40CM×1.2CM，其内见血管影穿行。纵隔右侧见不规则软组织密度影，大小约5.8CM×3.8CM，平扫CT值约34HU，三期增强值分别是50、42、65HU.右肺叶间裂增厚。纵隔、腋窝内见明显增大的淋巴结，较大者短径约1.8CM。右侧胸腔积液征象。心脏不大，部分大血管壁见钙化。下位胸椎体内高密度影。</t>
-  </si>
-  <si>
-    <t>5.8CM×3.8CM</t>
-  </si>
-  <si>
-    <t>1、右肺下叶周围型肺癌并远端阻塞性肺炎，较2013-05-28CT未见显著变化，周边粟粒灶，左肺上叶前段结节，左肺下叶背段斜裂处结节，较前进展；右肺门、纵隔淋巴结稍大，较前相仿；2、肝内多发低密度灶；3、胸椎成骨性转移。右肺上叶可见索条影；右肺下叶可见肿块影，大小为6.73CM×5.87CM，CT值约为46HU，增强时其内密度不均，呈明显强化；边缘不规整，可见毛刺及分叶，邻近胸膜粘连；病灶周边见小粟粒灶。左肺上叶前段可见结节灶，径约1.30CM。左肺下叶背段近斜裂处见小结节影，径约0.41CM；右肺门、纵隔淋巴结增大，大者短径1.70CM。心脏大血管未见异常。胸3椎体内可见片状高密度影。肝内可见多发低密度影。</t>
-  </si>
-  <si>
-    <t>6.73CM×5.87CM</t>
-  </si>
-  <si>
-    <t>胸椎</t>
-  </si>
-  <si>
-    <t>肝脏轮廓光滑，体积正常，肝裂无增宽，肝左外叶可见类圆形稍低密度影，边界欠清，长径约0.95CM，平扫CT值约36HU，增强扫描呈边缘环形强化。肝右下叶见结节样致密影。胆囊形态饱满，壁厚，未见异常密度影。左肾可见类圆形低密度影，界清，径约0.6CM，平扫CT值约31HU，增强扫描未见强化。脾脏、胰腺、右肾形态大小正常范围，未见异常密度影。所示食管下段管壁增厚，管腔狭窄；胃小弯侧见迂曲血管影；肝门区、胃小弯侧、腹膜后较多发小淋巴结影，大者短径约0.9CM。1.肝左叶稍低密度灶，考虑转移瘤，较2016-08-26CT新显示；肝右下叶钙化灶；2.胆囊炎征象；3.左肾稍低密度灶，请结合临床；3.食管癌并肝门区、胃小弯侧、腹膜后淋巴结转移，部分较前略减小。</t>
-  </si>
-  <si>
-    <t>食管下段管壁</t>
-  </si>
-  <si>
-    <t>肝左叶,肝门区、胃小弯侧、腹膜后淋巴结</t>
   </si>
 </sst>
 </file>
@@ -8831,7 +6341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1401"/>
+  <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19863,4980 +17373,6 @@
       </c>
       <c r="D1001" t="s"/>
     </row>
-    <row r="1002" spans="1:4">
-      <c r="A1002" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B1002" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1002" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:4">
-      <c r="A1003" t="s">
-        <v>1998</v>
-      </c>
-      <c r="B1003" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D1003" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:4">
-      <c r="A1004" t="s">
-        <v>1999</v>
-      </c>
-      <c r="B1004" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1004" t="s">
-        <v>2000</v>
-      </c>
-      <c r="D1004" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:4">
-      <c r="A1005" t="s">
-        <v>2002</v>
-      </c>
-      <c r="B1005" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1005" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:4">
-      <c r="A1006" t="s">
-        <v>2004</v>
-      </c>
-      <c r="B1006" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1006" t="s">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:4">
-      <c r="A1007" t="s">
-        <v>2006</v>
-      </c>
-      <c r="B1007" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1007" t="s">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:4">
-      <c r="A1008" t="s">
-        <v>2008</v>
-      </c>
-      <c r="B1008" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1008" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:4">
-      <c r="A1009" t="s">
-        <v>2010</v>
-      </c>
-      <c r="B1009" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1009" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:4">
-      <c r="A1010" t="s">
-        <v>2012</v>
-      </c>
-      <c r="B1010" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1010" t="s">
-        <v>2013</v>
-      </c>
-      <c r="D1010" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:4">
-      <c r="A1011" t="s">
-        <v>2014</v>
-      </c>
-      <c r="B1011" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1011" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:4">
-      <c r="A1012" t="s">
-        <v>2016</v>
-      </c>
-      <c r="B1012" t="s">
-        <v>2017</v>
-      </c>
-      <c r="C1012" t="s">
-        <v>2018</v>
-      </c>
-      <c r="D1012" t="s">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:4">
-      <c r="A1013" t="s">
-        <v>2020</v>
-      </c>
-      <c r="B1013" t="s">
-        <v>2021</v>
-      </c>
-      <c r="C1013" t="s">
-        <v>2022</v>
-      </c>
-      <c r="D1013" t="s">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:4">
-      <c r="A1014" t="s">
-        <v>2024</v>
-      </c>
-      <c r="B1014" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1014" t="s">
-        <v>243</v>
-      </c>
-      <c r="D1014" t="s">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:4">
-      <c r="A1015" t="s">
-        <v>2026</v>
-      </c>
-      <c r="B1015" t="s">
-        <v>2027</v>
-      </c>
-      <c r="C1015" t="s">
-        <v>2028</v>
-      </c>
-      <c r="D1015" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:4">
-      <c r="A1016" t="s">
-        <v>2029</v>
-      </c>
-      <c r="B1016" t="s">
-        <v>2027</v>
-      </c>
-      <c r="C1016" t="s">
-        <v>2030</v>
-      </c>
-      <c r="D1016" t="s">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:4">
-      <c r="A1017" t="s">
-        <v>2032</v>
-      </c>
-      <c r="B1017" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C1017" t="s">
-        <v>2033</v>
-      </c>
-      <c r="D1017" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:4">
-      <c r="A1018" t="s">
-        <v>2034</v>
-      </c>
-      <c r="B1018" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1018" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:4">
-      <c r="A1019" t="s">
-        <v>2036</v>
-      </c>
-      <c r="B1019" t="s">
-        <v>2037</v>
-      </c>
-      <c r="C1019" t="s">
-        <v>2038</v>
-      </c>
-      <c r="D1019" t="s">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:4">
-      <c r="A1020" t="s">
-        <v>2040</v>
-      </c>
-      <c r="B1020" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1020" t="s">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:4">
-      <c r="A1021" t="s">
-        <v>2042</v>
-      </c>
-      <c r="B1021" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1021" t="s">
-        <v>2043</v>
-      </c>
-      <c r="D1021" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:4">
-      <c r="A1022" t="s">
-        <v>2044</v>
-      </c>
-      <c r="B1022" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1022" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:4">
-      <c r="A1023" t="s">
-        <v>2046</v>
-      </c>
-      <c r="B1023" t="s">
-        <v>2047</v>
-      </c>
-      <c r="C1023" t="s">
-        <v>2048</v>
-      </c>
-      <c r="D1023" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:4">
-      <c r="A1024" t="s">
-        <v>2049</v>
-      </c>
-      <c r="B1024" t="s">
-        <v>2050</v>
-      </c>
-      <c r="D1024" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:4">
-      <c r="A1025" t="s">
-        <v>2052</v>
-      </c>
-      <c r="B1025" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1025" t="s">
-        <v>2053</v>
-      </c>
-      <c r="D1025" t="s">
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:4">
-      <c r="A1026" t="s">
-        <v>2055</v>
-      </c>
-      <c r="B1026" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1026" t="s">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:4">
-      <c r="A1027" t="s">
-        <v>2057</v>
-      </c>
-      <c r="B1027" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1027" t="s">
-        <v>2058</v>
-      </c>
-      <c r="D1027" t="s">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:4">
-      <c r="A1028" t="s">
-        <v>2060</v>
-      </c>
-      <c r="B1028" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1028" t="s">
-        <v>2061</v>
-      </c>
-      <c r="D1028" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:4">
-      <c r="A1029" t="s">
-        <v>2063</v>
-      </c>
-      <c r="B1029" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1029" t="s">
-        <v>2064</v>
-      </c>
-      <c r="D1029" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:4">
-      <c r="A1030" t="s">
-        <v>2065</v>
-      </c>
-      <c r="B1030" t="s">
-        <v>2027</v>
-      </c>
-      <c r="C1030" t="s">
-        <v>2066</v>
-      </c>
-      <c r="D1030" t="s">
-        <v>2067</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:4">
-      <c r="A1031" t="s">
-        <v>2068</v>
-      </c>
-      <c r="B1031" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1031" t="s">
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:4">
-      <c r="A1032" t="s">
-        <v>2070</v>
-      </c>
-      <c r="B1032" t="s">
-        <v>2071</v>
-      </c>
-      <c r="D1032" t="s">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="1033" spans="1:4">
-      <c r="A1033" t="s">
-        <v>2072</v>
-      </c>
-      <c r="B1033" t="s">
-        <v>2073</v>
-      </c>
-      <c r="D1033" t="s"/>
-    </row>
-    <row r="1034" spans="1:4">
-      <c r="A1034" t="s">
-        <v>2074</v>
-      </c>
-      <c r="B1034" t="s">
-        <v>2075</v>
-      </c>
-      <c r="C1034" t="s">
-        <v>2076</v>
-      </c>
-      <c r="D1034" t="s">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="1035" spans="1:4">
-      <c r="A1035" t="s">
-        <v>2078</v>
-      </c>
-      <c r="B1035" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1035" t="s">
-        <v>2079</v>
-      </c>
-      <c r="D1035" t="s">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="1036" spans="1:4">
-      <c r="A1036" t="s">
-        <v>2081</v>
-      </c>
-      <c r="B1036" t="s">
-        <v>2082</v>
-      </c>
-      <c r="C1036" t="s">
-        <v>2083</v>
-      </c>
-      <c r="D1036" t="s">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:4">
-      <c r="A1037" t="s">
-        <v>2085</v>
-      </c>
-      <c r="B1037" t="s">
-        <v>2086</v>
-      </c>
-      <c r="C1037" t="s">
-        <v>2087</v>
-      </c>
-      <c r="D1037" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:4">
-      <c r="A1038" t="s">
-        <v>2088</v>
-      </c>
-      <c r="B1038" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1038" t="s">
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="1039" spans="1:4">
-      <c r="A1039" t="s">
-        <v>2090</v>
-      </c>
-      <c r="B1039" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1039" t="s">
-        <v>2091</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:4">
-      <c r="A1040" t="s">
-        <v>2092</v>
-      </c>
-      <c r="B1040" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1040" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:4">
-      <c r="A1041" t="s">
-        <v>2094</v>
-      </c>
-      <c r="B1041" t="s">
-        <v>2095</v>
-      </c>
-      <c r="C1041" t="s">
-        <v>2096</v>
-      </c>
-      <c r="D1041" t="s">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:4">
-      <c r="A1042" t="s">
-        <v>2097</v>
-      </c>
-      <c r="B1042" t="s">
-        <v>2098</v>
-      </c>
-      <c r="C1042" t="s">
-        <v>2099</v>
-      </c>
-      <c r="D1042" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:4">
-      <c r="A1043" t="s">
-        <v>2100</v>
-      </c>
-      <c r="B1043" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1043" t="s">
-        <v>2101</v>
-      </c>
-      <c r="D1043" t="s">
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:4">
-      <c r="A1044" t="s">
-        <v>2103</v>
-      </c>
-      <c r="B1044" t="s">
-        <v>2104</v>
-      </c>
-      <c r="D1044" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:4">
-      <c r="A1045" t="s">
-        <v>2105</v>
-      </c>
-      <c r="B1045" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1045" t="s">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:4">
-      <c r="A1046" t="s">
-        <v>2107</v>
-      </c>
-      <c r="B1046" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1046" t="s">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:4">
-      <c r="A1047" t="s">
-        <v>2109</v>
-      </c>
-      <c r="B1047" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1047" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:4">
-      <c r="A1048" t="s">
-        <v>2110</v>
-      </c>
-      <c r="B1048" t="s">
-        <v>2098</v>
-      </c>
-      <c r="C1048" t="s">
-        <v>2111</v>
-      </c>
-      <c r="D1048" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:4">
-      <c r="A1049" t="s">
-        <v>2112</v>
-      </c>
-      <c r="B1049" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1049" t="s">
-        <v>832</v>
-      </c>
-      <c r="D1049" t="s">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:4">
-      <c r="A1050" t="s">
-        <v>2113</v>
-      </c>
-      <c r="B1050" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1050" t="s">
-        <v>2114</v>
-      </c>
-      <c r="D1050" t="s">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:4">
-      <c r="A1051" t="s">
-        <v>2116</v>
-      </c>
-      <c r="B1051" t="s">
-        <v>2037</v>
-      </c>
-      <c r="C1051" t="s">
-        <v>2117</v>
-      </c>
-      <c r="D1051" t="s">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:4">
-      <c r="A1052" t="s">
-        <v>2118</v>
-      </c>
-      <c r="B1052" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1052" t="s">
-        <v>2119</v>
-      </c>
-      <c r="D1052" t="s">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:4">
-      <c r="A1053" t="s">
-        <v>2120</v>
-      </c>
-      <c r="B1053" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1053" t="s">
-        <v>2121</v>
-      </c>
-      <c r="D1053" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:4">
-      <c r="A1054" t="s">
-        <v>2122</v>
-      </c>
-      <c r="B1054" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1054" t="s">
-        <v>2123</v>
-      </c>
-      <c r="D1054" t="s">
-        <v>2124</v>
-      </c>
-    </row>
-    <row r="1055" spans="1:4">
-      <c r="A1055" t="s">
-        <v>2125</v>
-      </c>
-      <c r="B1055" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1055" t="s">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:4">
-      <c r="A1056" t="s">
-        <v>2127</v>
-      </c>
-      <c r="B1056" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1056" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:4">
-      <c r="A1057" t="s">
-        <v>2128</v>
-      </c>
-      <c r="B1057" t="s">
-        <v>2129</v>
-      </c>
-      <c r="D1057" t="s">
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:4">
-      <c r="A1058" t="s">
-        <v>2131</v>
-      </c>
-      <c r="B1058" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1058" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:4">
-      <c r="A1059" t="s">
-        <v>2132</v>
-      </c>
-      <c r="B1059" t="s">
-        <v>2133</v>
-      </c>
-      <c r="C1059" t="s">
-        <v>2134</v>
-      </c>
-      <c r="D1059" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:4">
-      <c r="A1060" t="s">
-        <v>2135</v>
-      </c>
-      <c r="B1060" t="s">
-        <v>2136</v>
-      </c>
-      <c r="C1060" t="s">
-        <v>2137</v>
-      </c>
-      <c r="D1060" t="s">
-        <v>2138</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:4">
-      <c r="A1061" t="s">
-        <v>2139</v>
-      </c>
-      <c r="B1061" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1061" t="s">
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:4">
-      <c r="A1062" t="s">
-        <v>2141</v>
-      </c>
-      <c r="B1062" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1062" t="s">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:4">
-      <c r="A1063" t="s">
-        <v>2143</v>
-      </c>
-      <c r="B1063" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1063" t="s">
-        <v>2144</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:4">
-      <c r="A1064" t="s">
-        <v>2145</v>
-      </c>
-      <c r="B1064" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1064" t="s">
-        <v>2058</v>
-      </c>
-      <c r="D1064" t="s">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:4">
-      <c r="A1065" t="s">
-        <v>2147</v>
-      </c>
-      <c r="B1065" t="s">
-        <v>2148</v>
-      </c>
-      <c r="C1065" t="s">
-        <v>2149</v>
-      </c>
-      <c r="D1065" t="s">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:4">
-      <c r="A1066" t="s">
-        <v>2151</v>
-      </c>
-      <c r="B1066" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1066" t="s">
-        <v>2152</v>
-      </c>
-    </row>
-    <row r="1067" spans="1:4">
-      <c r="A1067" t="s">
-        <v>2153</v>
-      </c>
-      <c r="B1067" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1067" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:4">
-      <c r="A1068" t="s">
-        <v>2154</v>
-      </c>
-      <c r="B1068" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D1068" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:4">
-      <c r="A1069" t="s">
-        <v>2155</v>
-      </c>
-      <c r="B1069" t="s">
-        <v>2156</v>
-      </c>
-      <c r="C1069" t="s">
-        <v>2157</v>
-      </c>
-      <c r="D1069" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:4">
-      <c r="A1070" t="s">
-        <v>2158</v>
-      </c>
-      <c r="B1070" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1070" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:4">
-      <c r="A1071" t="s">
-        <v>2159</v>
-      </c>
-      <c r="B1071" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1071" t="s">
-        <v>2160</v>
-      </c>
-      <c r="D1071" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:4">
-      <c r="A1072" t="s">
-        <v>2161</v>
-      </c>
-      <c r="B1072" t="s">
-        <v>2027</v>
-      </c>
-      <c r="C1072" t="s">
-        <v>2162</v>
-      </c>
-      <c r="D1072" t="s">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:4">
-      <c r="A1073" t="s">
-        <v>2163</v>
-      </c>
-      <c r="B1073" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1073" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D1073" t="s">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="1074" spans="1:4">
-      <c r="A1074" t="s">
-        <v>2166</v>
-      </c>
-      <c r="B1074" t="s">
-        <v>2167</v>
-      </c>
-      <c r="D1074" t="s">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:4">
-      <c r="A1075" t="s">
-        <v>2169</v>
-      </c>
-      <c r="B1075" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1075" t="s">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:4">
-      <c r="A1076" t="s">
-        <v>2171</v>
-      </c>
-      <c r="B1076" t="s">
-        <v>831</v>
-      </c>
-      <c r="C1076" t="s">
-        <v>878</v>
-      </c>
-      <c r="D1076" t="s">
-        <v>2172</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:4">
-      <c r="A1077" t="s">
-        <v>2173</v>
-      </c>
-      <c r="B1077" t="s">
-        <v>2129</v>
-      </c>
-      <c r="D1077" t="s">
-        <v>2174</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:4">
-      <c r="A1078" t="s">
-        <v>2175</v>
-      </c>
-      <c r="B1078" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1078" t="s">
-        <v>2176</v>
-      </c>
-      <c r="D1078" t="s">
-        <v>2177</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:4">
-      <c r="A1079" t="s">
-        <v>2178</v>
-      </c>
-      <c r="B1079" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1079" t="s">
-        <v>2179</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:4">
-      <c r="A1080" t="s">
-        <v>2180</v>
-      </c>
-      <c r="B1080" t="s">
-        <v>723</v>
-      </c>
-      <c r="D1080" t="s">
-        <v>2181</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:4">
-      <c r="A1081" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B1081" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1081" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:4">
-      <c r="A1082" t="s">
-        <v>2183</v>
-      </c>
-      <c r="B1082" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1082" t="s">
-        <v>2184</v>
-      </c>
-      <c r="D1082" t="s">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="1083" spans="1:4">
-      <c r="A1083" t="s">
-        <v>2186</v>
-      </c>
-      <c r="B1083" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1083" t="s">
-        <v>2187</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:4">
-      <c r="A1084" t="s">
-        <v>2188</v>
-      </c>
-      <c r="B1084" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1084" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:4">
-      <c r="A1085" t="s">
-        <v>2189</v>
-      </c>
-      <c r="B1085" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D1085" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:4">
-      <c r="A1086" t="s">
-        <v>2190</v>
-      </c>
-      <c r="B1086" t="s">
-        <v>2191</v>
-      </c>
-      <c r="C1086" t="s">
-        <v>2192</v>
-      </c>
-      <c r="D1086" t="s">
-        <v>2193</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:4">
-      <c r="A1087" t="s">
-        <v>2194</v>
-      </c>
-      <c r="B1087" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1087" t="s">
-        <v>2195</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:4">
-      <c r="A1088" t="s">
-        <v>2196</v>
-      </c>
-      <c r="B1088" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1088" t="s">
-        <v>2197</v>
-      </c>
-      <c r="D1088" t="s">
-        <v>2198</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:4">
-      <c r="A1089" t="s">
-        <v>2199</v>
-      </c>
-      <c r="B1089" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1089" t="s">
-        <v>2200</v>
-      </c>
-      <c r="D1089" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:4">
-      <c r="A1090" t="s">
-        <v>2201</v>
-      </c>
-      <c r="B1090" t="s">
-        <v>2129</v>
-      </c>
-      <c r="D1090" t="s">
-        <v>2202</v>
-      </c>
-    </row>
-    <row r="1091" spans="1:4">
-      <c r="A1091" t="s">
-        <v>2203</v>
-      </c>
-      <c r="B1091" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1091" t="s">
-        <v>2204</v>
-      </c>
-    </row>
-    <row r="1092" spans="1:4">
-      <c r="A1092" t="s">
-        <v>2205</v>
-      </c>
-      <c r="B1092" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1092" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D1092" t="s">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:4">
-      <c r="A1093" t="s">
-        <v>2206</v>
-      </c>
-      <c r="B1093" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1093" t="s">
-        <v>2207</v>
-      </c>
-      <c r="D1093" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="1094" spans="1:4">
-      <c r="A1094" t="s">
-        <v>2208</v>
-      </c>
-      <c r="B1094" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1094" t="s">
-        <v>2209</v>
-      </c>
-      <c r="D1094" t="s">
-        <v>2210</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:4">
-      <c r="A1095" t="s">
-        <v>2211</v>
-      </c>
-      <c r="B1095" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1095" t="s">
-        <v>2212</v>
-      </c>
-    </row>
-    <row r="1096" spans="1:4">
-      <c r="A1096" t="s">
-        <v>2213</v>
-      </c>
-      <c r="B1096" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1096" t="s">
-        <v>2214</v>
-      </c>
-    </row>
-    <row r="1097" spans="1:4">
-      <c r="A1097" t="s">
-        <v>2215</v>
-      </c>
-      <c r="B1097" t="s">
-        <v>2216</v>
-      </c>
-      <c r="C1097" t="s">
-        <v>2217</v>
-      </c>
-      <c r="D1097" t="s">
-        <v>2218</v>
-      </c>
-    </row>
-    <row r="1098" spans="1:4">
-      <c r="A1098" t="s">
-        <v>2219</v>
-      </c>
-      <c r="B1098" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1098" t="s">
-        <v>2220</v>
-      </c>
-    </row>
-    <row r="1099" spans="1:4">
-      <c r="A1099" t="s">
-        <v>2221</v>
-      </c>
-      <c r="B1099" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1099" t="s">
-        <v>2222</v>
-      </c>
-    </row>
-    <row r="1100" spans="1:4">
-      <c r="A1100" t="s">
-        <v>2223</v>
-      </c>
-      <c r="B1100" t="s">
-        <v>737</v>
-      </c>
-      <c r="D1100" t="s">
-        <v>2224</v>
-      </c>
-    </row>
-    <row r="1101" spans="1:4">
-      <c r="A1101" t="s">
-        <v>2225</v>
-      </c>
-      <c r="B1101" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1101" t="s">
-        <v>2226</v>
-      </c>
-    </row>
-    <row r="1102" spans="1:4">
-      <c r="A1102" t="s">
-        <v>2227</v>
-      </c>
-      <c r="B1102" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1102" t="s">
-        <v>2228</v>
-      </c>
-    </row>
-    <row r="1103" spans="1:4">
-      <c r="A1103" t="s">
-        <v>2229</v>
-      </c>
-      <c r="B1103" t="s">
-        <v>2230</v>
-      </c>
-      <c r="D1103" t="s">
-        <v>2231</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:4">
-      <c r="A1104" t="s">
-        <v>2232</v>
-      </c>
-      <c r="B1104" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1104" t="s">
-        <v>2233</v>
-      </c>
-      <c r="D1104" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="1105" spans="1:4">
-      <c r="A1105" t="s">
-        <v>2234</v>
-      </c>
-      <c r="B1105" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1105" t="s">
-        <v>2235</v>
-      </c>
-    </row>
-    <row r="1106" spans="1:4">
-      <c r="A1106" t="s">
-        <v>2236</v>
-      </c>
-      <c r="B1106" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1106" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:4">
-      <c r="A1107" t="s">
-        <v>2237</v>
-      </c>
-      <c r="B1107" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1107" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="1108" spans="1:4">
-      <c r="A1108" t="s">
-        <v>2239</v>
-      </c>
-      <c r="B1108" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1108" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:4">
-      <c r="A1109" t="s">
-        <v>2240</v>
-      </c>
-      <c r="B1109" t="s">
-        <v>831</v>
-      </c>
-      <c r="C1109" t="s">
-        <v>2241</v>
-      </c>
-      <c r="D1109" t="s">
-        <v>2242</v>
-      </c>
-    </row>
-    <row r="1110" spans="1:4">
-      <c r="A1110" t="s">
-        <v>2243</v>
-      </c>
-      <c r="B1110" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1110" t="s">
-        <v>2091</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:4">
-      <c r="A1111" t="s">
-        <v>2244</v>
-      </c>
-      <c r="B1111" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1111" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1111" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:4">
-      <c r="A1112" t="s">
-        <v>2245</v>
-      </c>
-      <c r="B1112" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1112" t="s">
-        <v>2246</v>
-      </c>
-      <c r="D1112" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:4">
-      <c r="A1113" t="s">
-        <v>2247</v>
-      </c>
-      <c r="B1113" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D1113" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:4">
-      <c r="A1114" t="s">
-        <v>2248</v>
-      </c>
-      <c r="B1114" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1114" t="s">
-        <v>2249</v>
-      </c>
-      <c r="D1114" t="s">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:4">
-      <c r="A1115" t="s">
-        <v>2250</v>
-      </c>
-      <c r="B1115" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1115" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:4">
-      <c r="A1116" t="s">
-        <v>2251</v>
-      </c>
-      <c r="B1116" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1116" t="s">
-        <v>2252</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:4">
-      <c r="A1117" t="s">
-        <v>2253</v>
-      </c>
-      <c r="B1117" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1117" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:4">
-      <c r="A1118" t="s">
-        <v>2254</v>
-      </c>
-      <c r="B1118" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1118" t="s">
-        <v>2184</v>
-      </c>
-      <c r="D1118" t="s">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:4">
-      <c r="A1119" t="s">
-        <v>2255</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1119" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:4">
-      <c r="A1120" t="s">
-        <v>2256</v>
-      </c>
-      <c r="B1120" t="s"/>
-      <c r="D1120" t="s"/>
-    </row>
-    <row r="1121" spans="1:4">
-      <c r="A1121" t="s">
-        <v>2257</v>
-      </c>
-      <c r="B1121" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1121" t="s">
-        <v>2197</v>
-      </c>
-      <c r="D1121" t="s">
-        <v>2258</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:4">
-      <c r="A1122" t="s">
-        <v>2259</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>2129</v>
-      </c>
-      <c r="D1122" t="s">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:4">
-      <c r="A1123" t="s">
-        <v>2260</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1123" t="s">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="1124" spans="1:4">
-      <c r="A1124" t="s">
-        <v>2261</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1124" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:4">
-      <c r="A1125" t="s">
-        <v>2262</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1125" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:4">
-      <c r="A1126" t="s">
-        <v>2263</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1126" t="s">
-        <v>2264</v>
-      </c>
-    </row>
-    <row r="1127" spans="1:4">
-      <c r="A1127" t="s">
-        <v>2265</v>
-      </c>
-      <c r="B1127" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1127" t="s">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:4">
-      <c r="A1128" t="s">
-        <v>2267</v>
-      </c>
-      <c r="B1128" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1128" t="s">
-        <v>2268</v>
-      </c>
-      <c r="D1128" t="s">
-        <v>2269</v>
-      </c>
-    </row>
-    <row r="1129" spans="1:4">
-      <c r="A1129" t="s">
-        <v>2270</v>
-      </c>
-      <c r="B1129" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1129" t="s">
-        <v>2271</v>
-      </c>
-    </row>
-    <row r="1130" spans="1:4">
-      <c r="A1130" t="s">
-        <v>2272</v>
-      </c>
-      <c r="B1130" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1130" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="1131" spans="1:4">
-      <c r="A1131" t="s">
-        <v>2273</v>
-      </c>
-      <c r="B1131" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1131" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="1132" spans="1:4">
-      <c r="A1132" t="s">
-        <v>2274</v>
-      </c>
-      <c r="B1132" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1132" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="1133" spans="1:4">
-      <c r="A1133" t="s">
-        <v>2275</v>
-      </c>
-      <c r="B1133" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D1133" t="s">
-        <v>2276</v>
-      </c>
-    </row>
-    <row r="1134" spans="1:4">
-      <c r="A1134" t="s">
-        <v>2277</v>
-      </c>
-      <c r="B1134" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1134" t="s">
-        <v>2278</v>
-      </c>
-    </row>
-    <row r="1135" spans="1:4">
-      <c r="A1135" t="s">
-        <v>2279</v>
-      </c>
-      <c r="B1135" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1135" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="1136" spans="1:4">
-      <c r="A1136" t="s">
-        <v>2281</v>
-      </c>
-      <c r="B1136" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1136" t="s">
-        <v>2278</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:4">
-      <c r="A1137" t="s">
-        <v>2282</v>
-      </c>
-      <c r="B1137" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1137" t="s">
-        <v>2283</v>
-      </c>
-    </row>
-    <row r="1138" spans="1:4">
-      <c r="A1138" t="s">
-        <v>2284</v>
-      </c>
-      <c r="B1138" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1138" t="s">
-        <v>2285</v>
-      </c>
-    </row>
-    <row r="1139" spans="1:4">
-      <c r="A1139" t="s">
-        <v>2286</v>
-      </c>
-      <c r="B1139" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1139" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="1140" spans="1:4">
-      <c r="A1140" t="s">
-        <v>2287</v>
-      </c>
-      <c r="B1140" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1140" t="s">
-        <v>2288</v>
-      </c>
-      <c r="D1140" t="s">
-        <v>2289</v>
-      </c>
-    </row>
-    <row r="1141" spans="1:4">
-      <c r="A1141" t="s">
-        <v>2290</v>
-      </c>
-      <c r="B1141" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1141" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="1142" spans="1:4">
-      <c r="A1142" t="s">
-        <v>2291</v>
-      </c>
-      <c r="B1142" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1142" t="s">
-        <v>2292</v>
-      </c>
-      <c r="D1142" t="s">
-        <v>2293</v>
-      </c>
-    </row>
-    <row r="1143" spans="1:4">
-      <c r="A1143" t="s">
-        <v>2294</v>
-      </c>
-      <c r="B1143" t="s">
-        <v>2129</v>
-      </c>
-      <c r="D1143" t="s">
-        <v>2295</v>
-      </c>
-    </row>
-    <row r="1144" spans="1:4">
-      <c r="A1144" t="s">
-        <v>2296</v>
-      </c>
-      <c r="B1144" t="s">
-        <v>2156</v>
-      </c>
-      <c r="C1144" t="s">
-        <v>2297</v>
-      </c>
-      <c r="D1144" t="s">
-        <v>2298</v>
-      </c>
-    </row>
-    <row r="1145" spans="1:4">
-      <c r="A1145" t="s">
-        <v>2299</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1145" t="s">
-        <v>2162</v>
-      </c>
-      <c r="D1145" t="s">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="1146" spans="1:4">
-      <c r="A1146" t="s">
-        <v>2300</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1146" t="s">
-        <v>2228</v>
-      </c>
-    </row>
-    <row r="1147" spans="1:4">
-      <c r="A1147" t="s">
-        <v>2301</v>
-      </c>
-      <c r="B1147" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1147" t="s">
-        <v>2302</v>
-      </c>
-    </row>
-    <row r="1148" spans="1:4">
-      <c r="A1148" t="s">
-        <v>2303</v>
-      </c>
-      <c r="B1148" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1148" t="s">
-        <v>2304</v>
-      </c>
-      <c r="D1148" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="1149" spans="1:4">
-      <c r="A1149" t="s">
-        <v>2306</v>
-      </c>
-      <c r="B1149" t="s">
-        <v>2307</v>
-      </c>
-      <c r="D1149" t="s">
-        <v>2308</v>
-      </c>
-    </row>
-    <row r="1150" spans="1:4">
-      <c r="A1150" t="s">
-        <v>2309</v>
-      </c>
-      <c r="B1150" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1150" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="1151" spans="1:4">
-      <c r="A1151" t="s">
-        <v>2310</v>
-      </c>
-      <c r="B1151" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1151" t="s">
-        <v>2311</v>
-      </c>
-      <c r="D1151" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="1152" spans="1:4">
-      <c r="A1152" t="s">
-        <v>2312</v>
-      </c>
-      <c r="B1152" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1152" t="s">
-        <v>2313</v>
-      </c>
-    </row>
-    <row r="1153" spans="1:4">
-      <c r="A1153" t="s">
-        <v>2314</v>
-      </c>
-      <c r="B1153" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1153" t="s">
-        <v>2315</v>
-      </c>
-      <c r="D1153" t="s">
-        <v>2316</v>
-      </c>
-    </row>
-    <row r="1154" spans="1:4">
-      <c r="A1154" t="s">
-        <v>2317</v>
-      </c>
-      <c r="B1154" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1154" t="s">
-        <v>2318</v>
-      </c>
-      <c r="D1154" t="s">
-        <v>2319</v>
-      </c>
-    </row>
-    <row r="1155" spans="1:4">
-      <c r="A1155" t="s">
-        <v>2320</v>
-      </c>
-      <c r="B1155" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1155" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="1156" spans="1:4">
-      <c r="A1156" t="s">
-        <v>2321</v>
-      </c>
-      <c r="B1156" t="s">
-        <v>2322</v>
-      </c>
-      <c r="C1156" t="s">
-        <v>2323</v>
-      </c>
-      <c r="D1156" t="s">
-        <v>2324</v>
-      </c>
-    </row>
-    <row r="1157" spans="1:4">
-      <c r="A1157" t="s">
-        <v>2325</v>
-      </c>
-      <c r="B1157" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1157" t="s">
-        <v>2326</v>
-      </c>
-    </row>
-    <row r="1158" spans="1:4">
-      <c r="A1158" t="s">
-        <v>2327</v>
-      </c>
-      <c r="B1158" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1158" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="1159" spans="1:4">
-      <c r="A1159" t="s">
-        <v>2328</v>
-      </c>
-      <c r="B1159" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1159" t="s">
-        <v>2329</v>
-      </c>
-    </row>
-    <row r="1160" spans="1:4">
-      <c r="A1160" t="s">
-        <v>2330</v>
-      </c>
-      <c r="B1160" t="s">
-        <v>252</v>
-      </c>
-      <c r="C1160" t="s">
-        <v>2331</v>
-      </c>
-      <c r="D1160" t="s">
-        <v>2332</v>
-      </c>
-    </row>
-    <row r="1161" spans="1:4">
-      <c r="A1161" t="s">
-        <v>2333</v>
-      </c>
-      <c r="B1161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1161" t="s">
-        <v>2334</v>
-      </c>
-      <c r="D1161" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1162" spans="1:4">
-      <c r="A1162" t="s">
-        <v>2335</v>
-      </c>
-      <c r="B1162" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D1162" t="s">
-        <v>2336</v>
-      </c>
-    </row>
-    <row r="1163" spans="1:4">
-      <c r="A1163" t="s">
-        <v>2337</v>
-      </c>
-      <c r="B1163" t="s">
-        <v>2338</v>
-      </c>
-      <c r="D1163" t="s">
-        <v>2339</v>
-      </c>
-    </row>
-    <row r="1164" spans="1:4">
-      <c r="A1164" t="s">
-        <v>2340</v>
-      </c>
-      <c r="B1164" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D1164" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1165" spans="1:4">
-      <c r="A1165" t="s">
-        <v>2341</v>
-      </c>
-      <c r="B1165" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1165" t="s">
-        <v>2342</v>
-      </c>
-    </row>
-    <row r="1166" spans="1:4">
-      <c r="A1166" t="s">
-        <v>2343</v>
-      </c>
-      <c r="B1166" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1166" t="s">
-        <v>2344</v>
-      </c>
-    </row>
-    <row r="1167" spans="1:4">
-      <c r="A1167" t="s">
-        <v>2345</v>
-      </c>
-      <c r="B1167" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1167" t="s">
-        <v>2346</v>
-      </c>
-    </row>
-    <row r="1168" spans="1:4">
-      <c r="A1168" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B1168" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1168" t="s">
-        <v>2184</v>
-      </c>
-      <c r="D1168" t="s">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="1169" spans="1:4">
-      <c r="A1169" t="s">
-        <v>2348</v>
-      </c>
-      <c r="B1169" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1169" t="s">
-        <v>2349</v>
-      </c>
-      <c r="D1169" t="s">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="1170" spans="1:4">
-      <c r="A1170" t="s">
-        <v>2350</v>
-      </c>
-      <c r="B1170" t="s">
-        <v>607</v>
-      </c>
-      <c r="D1170" t="s">
-        <v>2351</v>
-      </c>
-    </row>
-    <row r="1171" spans="1:4">
-      <c r="A1171" t="s">
-        <v>2352</v>
-      </c>
-      <c r="B1171" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1171" t="s">
-        <v>2353</v>
-      </c>
-      <c r="D1171" t="s">
-        <v>2354</v>
-      </c>
-    </row>
-    <row r="1172" spans="1:4">
-      <c r="A1172" t="s">
-        <v>2355</v>
-      </c>
-      <c r="B1172" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1172" t="s">
-        <v>2356</v>
-      </c>
-    </row>
-    <row r="1173" spans="1:4">
-      <c r="A1173" t="s">
-        <v>2357</v>
-      </c>
-      <c r="B1173" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1173" t="s">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="1174" spans="1:4">
-      <c r="A1174" t="s">
-        <v>2358</v>
-      </c>
-      <c r="B1174" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1174" t="s">
-        <v>2359</v>
-      </c>
-    </row>
-    <row r="1175" spans="1:4">
-      <c r="A1175" t="s">
-        <v>2360</v>
-      </c>
-      <c r="B1175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1175" t="s">
-        <v>2361</v>
-      </c>
-      <c r="D1175" t="s">
-        <v>2362</v>
-      </c>
-    </row>
-    <row r="1176" spans="1:4">
-      <c r="A1176" t="s">
-        <v>2363</v>
-      </c>
-      <c r="B1176" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1176" t="s">
-        <v>2364</v>
-      </c>
-      <c r="D1176" t="s">
-        <v>2365</v>
-      </c>
-    </row>
-    <row r="1177" spans="1:4">
-      <c r="A1177" t="s">
-        <v>2366</v>
-      </c>
-      <c r="B1177" t="s">
-        <v>607</v>
-      </c>
-      <c r="D1177" t="s">
-        <v>2367</v>
-      </c>
-    </row>
-    <row r="1178" spans="1:4">
-      <c r="A1178" t="s">
-        <v>2368</v>
-      </c>
-      <c r="B1178" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1178" t="s">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="1179" spans="1:4">
-      <c r="A1179" t="s">
-        <v>2370</v>
-      </c>
-      <c r="B1179" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1179" t="s">
-        <v>2371</v>
-      </c>
-      <c r="D1179" t="s">
-        <v>2316</v>
-      </c>
-    </row>
-    <row r="1180" spans="1:4">
-      <c r="A1180" t="s">
-        <v>2372</v>
-      </c>
-      <c r="B1180" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1180" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D1180" t="s">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="1181" spans="1:4">
-      <c r="A1181" t="s">
-        <v>2374</v>
-      </c>
-      <c r="B1181" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1181" t="s">
-        <v>2375</v>
-      </c>
-      <c r="D1181" t="s">
-        <v>2376</v>
-      </c>
-    </row>
-    <row r="1182" spans="1:4">
-      <c r="A1182" t="s">
-        <v>2377</v>
-      </c>
-      <c r="B1182" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1182" t="s">
-        <v>2091</v>
-      </c>
-    </row>
-    <row r="1183" spans="1:4">
-      <c r="A1183" t="s">
-        <v>2378</v>
-      </c>
-      <c r="B1183" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1183" t="s">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="1184" spans="1:4">
-      <c r="A1184" t="s">
-        <v>2379</v>
-      </c>
-      <c r="B1184" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1184" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1185" spans="1:4">
-      <c r="A1185" t="s">
-        <v>2380</v>
-      </c>
-      <c r="B1185" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1185" t="s">
-        <v>2381</v>
-      </c>
-    </row>
-    <row r="1186" spans="1:4">
-      <c r="A1186" t="s">
-        <v>2382</v>
-      </c>
-      <c r="B1186" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1186" t="s">
-        <v>2383</v>
-      </c>
-      <c r="D1186" t="s">
-        <v>2384</v>
-      </c>
-    </row>
-    <row r="1187" spans="1:4">
-      <c r="A1187" t="s">
-        <v>2385</v>
-      </c>
-      <c r="B1187" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1187" t="s">
-        <v>2386</v>
-      </c>
-    </row>
-    <row r="1188" spans="1:4">
-      <c r="A1188" t="s">
-        <v>2387</v>
-      </c>
-      <c r="B1188" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1188" t="s">
-        <v>2388</v>
-      </c>
-    </row>
-    <row r="1189" spans="1:4">
-      <c r="A1189" t="s">
-        <v>2389</v>
-      </c>
-      <c r="B1189" t="s">
-        <v>607</v>
-      </c>
-      <c r="D1189" t="s">
-        <v>2390</v>
-      </c>
-    </row>
-    <row r="1190" spans="1:4">
-      <c r="A1190" t="s">
-        <v>2391</v>
-      </c>
-      <c r="B1190" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D1190" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1191" spans="1:4">
-      <c r="A1191" t="s">
-        <v>2392</v>
-      </c>
-      <c r="B1191" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1191" t="s">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="1192" spans="1:4">
-      <c r="A1192" t="s">
-        <v>2393</v>
-      </c>
-      <c r="B1192" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1192" t="s">
-        <v>1462</v>
-      </c>
-      <c r="D1192" t="s">
-        <v>2316</v>
-      </c>
-    </row>
-    <row r="1193" spans="1:4">
-      <c r="A1193" t="s">
-        <v>2394</v>
-      </c>
-      <c r="B1193" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1193" t="s">
-        <v>2395</v>
-      </c>
-    </row>
-    <row r="1194" spans="1:4">
-      <c r="A1194" t="s">
-        <v>2396</v>
-      </c>
-      <c r="B1194" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1194" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="1195" spans="1:4">
-      <c r="A1195" t="s">
-        <v>2397</v>
-      </c>
-      <c r="B1195" t="s">
-        <v>827</v>
-      </c>
-      <c r="D1195" t="s">
-        <v>2398</v>
-      </c>
-    </row>
-    <row r="1196" spans="1:4">
-      <c r="A1196" t="s">
-        <v>2399</v>
-      </c>
-      <c r="B1196" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1196" t="s">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="1197" spans="1:4">
-      <c r="A1197" t="s">
-        <v>2400</v>
-      </c>
-      <c r="B1197" t="s">
-        <v>252</v>
-      </c>
-      <c r="C1197" t="s">
-        <v>2401</v>
-      </c>
-      <c r="D1197" t="s">
-        <v>2402</v>
-      </c>
-    </row>
-    <row r="1198" spans="1:4">
-      <c r="A1198" t="s">
-        <v>2403</v>
-      </c>
-      <c r="B1198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1198" t="s">
-        <v>238</v>
-      </c>
-      <c r="D1198" t="s">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="1199" spans="1:4">
-      <c r="A1199" t="s">
-        <v>2404</v>
-      </c>
-      <c r="B1199" t="s">
-        <v>2405</v>
-      </c>
-      <c r="C1199" t="s">
-        <v>2406</v>
-      </c>
-      <c r="D1199" t="s">
-        <v>2407</v>
-      </c>
-    </row>
-    <row r="1200" spans="1:4">
-      <c r="A1200" t="s">
-        <v>2408</v>
-      </c>
-      <c r="B1200" t="s">
-        <v>2409</v>
-      </c>
-      <c r="D1200" t="s">
-        <v>2410</v>
-      </c>
-    </row>
-    <row r="1201" spans="1:4">
-      <c r="A1201" t="s">
-        <v>2411</v>
-      </c>
-      <c r="B1201" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1201" t="s">
-        <v>2412</v>
-      </c>
-    </row>
-    <row r="1202" spans="1:4">
-      <c r="A1202" t="s">
-        <v>2413</v>
-      </c>
-      <c r="B1202" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1202" t="s">
-        <v>2414</v>
-      </c>
-    </row>
-    <row r="1203" spans="1:4">
-      <c r="A1203" t="s">
-        <v>2415</v>
-      </c>
-      <c r="B1203" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1203" t="s">
-        <v>2152</v>
-      </c>
-    </row>
-    <row r="1204" spans="1:4">
-      <c r="A1204" t="s">
-        <v>2416</v>
-      </c>
-      <c r="B1204" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1204" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="1205" spans="1:4">
-      <c r="A1205" t="s">
-        <v>2418</v>
-      </c>
-      <c r="B1205" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1205" t="s">
-        <v>2419</v>
-      </c>
-    </row>
-    <row r="1206" spans="1:4">
-      <c r="A1206" t="s">
-        <v>2420</v>
-      </c>
-      <c r="B1206" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D1206" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:4">
-      <c r="A1207" t="s">
-        <v>2421</v>
-      </c>
-      <c r="B1207" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D1207" t="s">
-        <v>2422</v>
-      </c>
-    </row>
-    <row r="1208" spans="1:4">
-      <c r="A1208" t="s">
-        <v>2423</v>
-      </c>
-      <c r="B1208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1208" t="s">
-        <v>2424</v>
-      </c>
-      <c r="D1208" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="1209" spans="1:4">
-      <c r="A1209" t="s">
-        <v>2426</v>
-      </c>
-      <c r="B1209" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1209" t="s">
-        <v>2152</v>
-      </c>
-    </row>
-    <row r="1210" spans="1:4">
-      <c r="A1210" t="s">
-        <v>2427</v>
-      </c>
-      <c r="B1210" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1210" t="s">
-        <v>2428</v>
-      </c>
-      <c r="D1210" t="s">
-        <v>2429</v>
-      </c>
-    </row>
-    <row r="1211" spans="1:4">
-      <c r="A1211" t="s">
-        <v>2430</v>
-      </c>
-      <c r="B1211" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1211" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="1212" spans="1:4">
-      <c r="A1212" t="s">
-        <v>2431</v>
-      </c>
-      <c r="B1212" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1212" t="s">
-        <v>2432</v>
-      </c>
-    </row>
-    <row r="1213" spans="1:4">
-      <c r="A1213" t="s">
-        <v>2433</v>
-      </c>
-      <c r="B1213" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1213" t="s">
-        <v>2434</v>
-      </c>
-    </row>
-    <row r="1214" spans="1:4">
-      <c r="A1214" t="s">
-        <v>2435</v>
-      </c>
-      <c r="B1214" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1214" t="s">
-        <v>2436</v>
-      </c>
-      <c r="D1214" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="1215" spans="1:4">
-      <c r="A1215" t="s">
-        <v>2437</v>
-      </c>
-      <c r="B1215" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1215" t="s">
-        <v>2249</v>
-      </c>
-      <c r="D1215" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="1216" spans="1:4">
-      <c r="A1216" t="s">
-        <v>2438</v>
-      </c>
-      <c r="B1216" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1216" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1216" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="1217" spans="1:4">
-      <c r="A1217" t="s">
-        <v>2439</v>
-      </c>
-      <c r="B1217" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1217" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="1218" spans="1:4">
-      <c r="A1218" t="s">
-        <v>2440</v>
-      </c>
-      <c r="B1218" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1218" t="s">
-        <v>2441</v>
-      </c>
-    </row>
-    <row r="1219" spans="1:4">
-      <c r="A1219" t="s">
-        <v>2442</v>
-      </c>
-      <c r="B1219" t="s">
-        <v>2129</v>
-      </c>
-      <c r="D1219" t="s">
-        <v>2443</v>
-      </c>
-    </row>
-    <row r="1220" spans="1:4">
-      <c r="A1220" t="s">
-        <v>2444</v>
-      </c>
-      <c r="B1220" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1220" t="s">
-        <v>2445</v>
-      </c>
-      <c r="D1220" t="s">
-        <v>2446</v>
-      </c>
-    </row>
-    <row r="1221" spans="1:4">
-      <c r="A1221" t="s">
-        <v>2447</v>
-      </c>
-      <c r="B1221" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1221" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="1222" spans="1:4">
-      <c r="A1222" t="s">
-        <v>2448</v>
-      </c>
-      <c r="B1222" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1222" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1223" spans="1:4">
-      <c r="A1223" t="s">
-        <v>2449</v>
-      </c>
-      <c r="B1223" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1223" t="s">
-        <v>2450</v>
-      </c>
-      <c r="D1223" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="1224" spans="1:4">
-      <c r="A1224" t="s">
-        <v>2451</v>
-      </c>
-      <c r="B1224" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1224" t="s">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="1225" spans="1:4">
-      <c r="A1225" t="s">
-        <v>2453</v>
-      </c>
-      <c r="B1225" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1225" t="s">
-        <v>2454</v>
-      </c>
-      <c r="D1225" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="1226" spans="1:4">
-      <c r="A1226" t="s">
-        <v>2455</v>
-      </c>
-      <c r="B1226" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1226" t="s">
-        <v>2456</v>
-      </c>
-      <c r="D1226" t="s">
-        <v>2354</v>
-      </c>
-    </row>
-    <row r="1227" spans="1:4">
-      <c r="A1227" t="s">
-        <v>2457</v>
-      </c>
-      <c r="B1227" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D1227" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1228" spans="1:4">
-      <c r="A1228" t="s">
-        <v>2458</v>
-      </c>
-      <c r="B1228" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1228" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="1229" spans="1:4">
-      <c r="A1229" t="s">
-        <v>2460</v>
-      </c>
-      <c r="B1229" t="s">
-        <v>607</v>
-      </c>
-      <c r="D1229" t="s">
-        <v>2461</v>
-      </c>
-    </row>
-    <row r="1230" spans="1:4">
-      <c r="A1230" t="s">
-        <v>2462</v>
-      </c>
-      <c r="B1230" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1230" t="s">
-        <v>2463</v>
-      </c>
-    </row>
-    <row r="1231" spans="1:4">
-      <c r="A1231" t="s">
-        <v>2464</v>
-      </c>
-      <c r="B1231" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1231" t="s">
-        <v>2465</v>
-      </c>
-    </row>
-    <row r="1232" spans="1:4">
-      <c r="A1232" t="s">
-        <v>2466</v>
-      </c>
-      <c r="B1232" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1232" t="s">
-        <v>2467</v>
-      </c>
-    </row>
-    <row r="1233" spans="1:4">
-      <c r="A1233" t="s">
-        <v>2468</v>
-      </c>
-      <c r="B1233" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1233" t="s">
-        <v>2249</v>
-      </c>
-      <c r="D1233" t="s">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="1234" spans="1:4">
-      <c r="A1234" t="s">
-        <v>2469</v>
-      </c>
-      <c r="B1234" t="s">
-        <v>2470</v>
-      </c>
-      <c r="C1234" t="s">
-        <v>2048</v>
-      </c>
-      <c r="D1234" t="s">
-        <v>2471</v>
-      </c>
-    </row>
-    <row r="1235" spans="1:4">
-      <c r="A1235" t="s">
-        <v>2472</v>
-      </c>
-      <c r="B1235" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1235" t="s">
-        <v>2344</v>
-      </c>
-    </row>
-    <row r="1236" spans="1:4">
-      <c r="A1236" t="s">
-        <v>2473</v>
-      </c>
-      <c r="B1236" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1236" t="s">
-        <v>2474</v>
-      </c>
-    </row>
-    <row r="1237" spans="1:4">
-      <c r="A1237" t="s">
-        <v>2475</v>
-      </c>
-      <c r="B1237" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1237" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="1238" spans="1:4">
-      <c r="A1238" t="s">
-        <v>2476</v>
-      </c>
-      <c r="B1238" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1238" t="s">
-        <v>2149</v>
-      </c>
-      <c r="D1238" t="s">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="1239" spans="1:4">
-      <c r="A1239" t="s">
-        <v>2477</v>
-      </c>
-      <c r="B1239" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1239" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="1240" spans="1:4">
-      <c r="A1240" t="s">
-        <v>2478</v>
-      </c>
-      <c r="B1240" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1240" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D1240" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="1241" spans="1:4">
-      <c r="A1241" t="s">
-        <v>2480</v>
-      </c>
-      <c r="B1241" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1241" t="s">
-        <v>2481</v>
-      </c>
-    </row>
-    <row r="1242" spans="1:4">
-      <c r="A1242" t="s">
-        <v>2482</v>
-      </c>
-      <c r="B1242" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1242" t="s">
-        <v>2371</v>
-      </c>
-      <c r="D1242" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="1243" spans="1:4">
-      <c r="A1243" t="s">
-        <v>2483</v>
-      </c>
-      <c r="B1243" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1243" t="s">
-        <v>624</v>
-      </c>
-      <c r="D1243" t="s">
-        <v>2484</v>
-      </c>
-    </row>
-    <row r="1244" spans="1:4">
-      <c r="A1244" t="s">
-        <v>2485</v>
-      </c>
-      <c r="B1244" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1244" t="s">
-        <v>2486</v>
-      </c>
-    </row>
-    <row r="1245" spans="1:4">
-      <c r="A1245" t="s">
-        <v>2487</v>
-      </c>
-      <c r="B1245" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1245" t="s">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="1246" spans="1:4">
-      <c r="A1246" t="s">
-        <v>2488</v>
-      </c>
-      <c r="B1246" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D1246" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="1247" spans="1:4">
-      <c r="A1247" t="s">
-        <v>2489</v>
-      </c>
-      <c r="B1247" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1247" t="s">
-        <v>2490</v>
-      </c>
-    </row>
-    <row r="1248" spans="1:4">
-      <c r="A1248" t="s">
-        <v>2491</v>
-      </c>
-      <c r="B1248" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1248" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="1249" spans="1:4">
-      <c r="A1249" t="s">
-        <v>2492</v>
-      </c>
-      <c r="B1249" t="s">
-        <v>2493</v>
-      </c>
-      <c r="C1249" t="s">
-        <v>2494</v>
-      </c>
-      <c r="D1249" t="s">
-        <v>2495</v>
-      </c>
-    </row>
-    <row r="1250" spans="1:4">
-      <c r="A1250" t="s">
-        <v>2496</v>
-      </c>
-      <c r="B1250" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1250" t="s">
-        <v>2497</v>
-      </c>
-    </row>
-    <row r="1251" spans="1:4">
-      <c r="A1251" t="s">
-        <v>2498</v>
-      </c>
-      <c r="B1251" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1251" t="s">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="1252" spans="1:4">
-      <c r="A1252" t="s">
-        <v>2500</v>
-      </c>
-      <c r="B1252" t="s">
-        <v>252</v>
-      </c>
-      <c r="C1252" t="s">
-        <v>2331</v>
-      </c>
-      <c r="D1252" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1253" spans="1:4">
-      <c r="A1253" t="s">
-        <v>2501</v>
-      </c>
-      <c r="B1253" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1253" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="1254" spans="1:4">
-      <c r="A1254" t="s">
-        <v>2502</v>
-      </c>
-      <c r="B1254" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1254" t="s">
-        <v>2503</v>
-      </c>
-      <c r="D1254" t="s">
-        <v>2504</v>
-      </c>
-    </row>
-    <row r="1255" spans="1:4">
-      <c r="A1255" t="s">
-        <v>2505</v>
-      </c>
-      <c r="B1255" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1255" t="s">
-        <v>2506</v>
-      </c>
-    </row>
-    <row r="1256" spans="1:4">
-      <c r="A1256" t="s">
-        <v>2507</v>
-      </c>
-      <c r="B1256" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1256" t="s">
-        <v>2508</v>
-      </c>
-      <c r="D1256" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="1257" spans="1:4">
-      <c r="A1257" t="s">
-        <v>2509</v>
-      </c>
-      <c r="B1257" t="s">
-        <v>737</v>
-      </c>
-      <c r="D1257" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1258" spans="1:4">
-      <c r="A1258" t="s">
-        <v>2510</v>
-      </c>
-      <c r="B1258" t="s">
-        <v>737</v>
-      </c>
-      <c r="D1258" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1259" spans="1:4">
-      <c r="A1259" t="s">
-        <v>2511</v>
-      </c>
-      <c r="B1259" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1259" t="s">
-        <v>2512</v>
-      </c>
-      <c r="D1259" t="s">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="1260" spans="1:4">
-      <c r="A1260" t="s">
-        <v>2513</v>
-      </c>
-      <c r="B1260" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1260" t="s">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="1261" spans="1:4">
-      <c r="A1261" t="s">
-        <v>2514</v>
-      </c>
-      <c r="B1261" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1261" t="s">
-        <v>2123</v>
-      </c>
-      <c r="D1261" t="s">
-        <v>2515</v>
-      </c>
-    </row>
-    <row r="1262" spans="1:4">
-      <c r="A1262" t="s">
-        <v>2516</v>
-      </c>
-      <c r="B1262" t="s">
-        <v>2470</v>
-      </c>
-      <c r="C1262" t="s">
-        <v>2517</v>
-      </c>
-      <c r="D1262" t="s">
-        <v>2471</v>
-      </c>
-    </row>
-    <row r="1263" spans="1:4">
-      <c r="A1263" t="s">
-        <v>2518</v>
-      </c>
-      <c r="B1263" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1263" t="s">
-        <v>2519</v>
-      </c>
-      <c r="D1263" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="1264" spans="1:4">
-      <c r="A1264" t="s">
-        <v>2520</v>
-      </c>
-      <c r="B1264" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1264" t="s">
-        <v>2521</v>
-      </c>
-    </row>
-    <row r="1265" spans="1:4">
-      <c r="A1265" t="s">
-        <v>2522</v>
-      </c>
-      <c r="B1265" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1265" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="1266" spans="1:4">
-      <c r="A1266" t="s">
-        <v>2523</v>
-      </c>
-      <c r="B1266" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1266" t="s">
-        <v>2524</v>
-      </c>
-      <c r="D1266" t="s">
-        <v>2525</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:4">
-      <c r="A1267" t="s">
-        <v>2526</v>
-      </c>
-      <c r="B1267" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1267" t="s">
-        <v>2527</v>
-      </c>
-    </row>
-    <row r="1268" spans="1:4">
-      <c r="A1268" t="s">
-        <v>2528</v>
-      </c>
-      <c r="B1268" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D1268" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1269" spans="1:4">
-      <c r="A1269" t="s">
-        <v>2529</v>
-      </c>
-      <c r="B1269" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1269" t="s">
-        <v>2530</v>
-      </c>
-      <c r="D1269" t="s">
-        <v>2316</v>
-      </c>
-    </row>
-    <row r="1270" spans="1:4">
-      <c r="A1270" t="s">
-        <v>2531</v>
-      </c>
-      <c r="B1270" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D1270" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1271" spans="1:4">
-      <c r="A1271" t="s">
-        <v>2532</v>
-      </c>
-      <c r="B1271" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1271" t="s">
-        <v>2533</v>
-      </c>
-      <c r="D1271" t="s">
-        <v>2534</v>
-      </c>
-    </row>
-    <row r="1272" spans="1:4">
-      <c r="A1272" t="s">
-        <v>2535</v>
-      </c>
-      <c r="B1272" t="s">
-        <v>827</v>
-      </c>
-      <c r="D1272" t="s">
-        <v>2536</v>
-      </c>
-    </row>
-    <row r="1273" spans="1:4">
-      <c r="A1273" t="s">
-        <v>2537</v>
-      </c>
-      <c r="B1273" t="s">
-        <v>2538</v>
-      </c>
-      <c r="C1273" t="s">
-        <v>2539</v>
-      </c>
-      <c r="D1273" t="s">
-        <v>2540</v>
-      </c>
-    </row>
-    <row r="1274" spans="1:4">
-      <c r="A1274" t="s">
-        <v>2541</v>
-      </c>
-      <c r="B1274" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1274" t="s">
-        <v>2542</v>
-      </c>
-    </row>
-    <row r="1275" spans="1:4">
-      <c r="A1275" t="s">
-        <v>2543</v>
-      </c>
-      <c r="B1275" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1275" t="s">
-        <v>1931</v>
-      </c>
-      <c r="D1275" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="1276" spans="1:4">
-      <c r="A1276" t="s">
-        <v>2544</v>
-      </c>
-      <c r="B1276" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1276" t="s">
-        <v>2326</v>
-      </c>
-    </row>
-    <row r="1277" spans="1:4">
-      <c r="A1277" t="s">
-        <v>2545</v>
-      </c>
-      <c r="B1277" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1277" t="s">
-        <v>2467</v>
-      </c>
-    </row>
-    <row r="1278" spans="1:4">
-      <c r="A1278" t="s">
-        <v>2546</v>
-      </c>
-      <c r="B1278" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1278" t="s">
-        <v>2547</v>
-      </c>
-    </row>
-    <row r="1279" spans="1:4">
-      <c r="A1279" t="s">
-        <v>2548</v>
-      </c>
-      <c r="B1279" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1279" t="s">
-        <v>2053</v>
-      </c>
-      <c r="D1279" t="s">
-        <v>2362</v>
-      </c>
-    </row>
-    <row r="1280" spans="1:4">
-      <c r="A1280" t="s">
-        <v>2549</v>
-      </c>
-      <c r="B1280" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1280" t="s">
-        <v>2550</v>
-      </c>
-      <c r="D1280" t="s">
-        <v>2551</v>
-      </c>
-    </row>
-    <row r="1281" spans="1:4">
-      <c r="A1281" t="s">
-        <v>2552</v>
-      </c>
-      <c r="B1281" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D1281" t="s">
-        <v>2553</v>
-      </c>
-    </row>
-    <row r="1282" spans="1:4">
-      <c r="A1282" t="s">
-        <v>2554</v>
-      </c>
-      <c r="B1282" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1282" t="s">
-        <v>2555</v>
-      </c>
-      <c r="D1282" t="s">
-        <v>2556</v>
-      </c>
-    </row>
-    <row r="1283" spans="1:4">
-      <c r="A1283" t="s">
-        <v>2557</v>
-      </c>
-      <c r="B1283" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1283" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="1284" spans="1:4">
-      <c r="A1284" t="s">
-        <v>2558</v>
-      </c>
-      <c r="B1284" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1284" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1285" spans="1:4">
-      <c r="A1285" t="s">
-        <v>2559</v>
-      </c>
-      <c r="B1285" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1285" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D1285" t="s">
-        <v>2376</v>
-      </c>
-    </row>
-    <row r="1286" spans="1:4">
-      <c r="A1286" t="s">
-        <v>2560</v>
-      </c>
-      <c r="B1286" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1286" t="s">
-        <v>2561</v>
-      </c>
-      <c r="D1286" t="s">
-        <v>2362</v>
-      </c>
-    </row>
-    <row r="1287" spans="1:4">
-      <c r="A1287" t="s">
-        <v>2562</v>
-      </c>
-      <c r="B1287" t="s">
-        <v>2129</v>
-      </c>
-      <c r="D1287" t="s">
-        <v>2202</v>
-      </c>
-    </row>
-    <row r="1288" spans="1:4">
-      <c r="A1288" t="s">
-        <v>2563</v>
-      </c>
-      <c r="B1288" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D1288" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1289" spans="1:4">
-      <c r="A1289" t="s">
-        <v>2564</v>
-      </c>
-      <c r="B1289" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1289" t="s">
-        <v>2565</v>
-      </c>
-      <c r="D1289" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="1290" spans="1:4">
-      <c r="A1290" t="s">
-        <v>2567</v>
-      </c>
-      <c r="B1290" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1290" t="s">
-        <v>2568</v>
-      </c>
-    </row>
-    <row r="1291" spans="1:4">
-      <c r="A1291" t="s">
-        <v>2569</v>
-      </c>
-      <c r="B1291" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1291" t="s">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="1292" spans="1:4">
-      <c r="A1292" t="s">
-        <v>2570</v>
-      </c>
-      <c r="B1292" t="s">
-        <v>252</v>
-      </c>
-      <c r="C1292" t="s">
-        <v>2571</v>
-      </c>
-      <c r="D1292" t="s">
-        <v>2402</v>
-      </c>
-    </row>
-    <row r="1293" spans="1:4">
-      <c r="A1293" t="s">
-        <v>2572</v>
-      </c>
-      <c r="B1293" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1293" t="s">
-        <v>2573</v>
-      </c>
-    </row>
-    <row r="1294" spans="1:4">
-      <c r="A1294" t="s">
-        <v>2574</v>
-      </c>
-      <c r="B1294" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1294" t="s">
-        <v>2575</v>
-      </c>
-      <c r="D1294" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="1295" spans="1:4">
-      <c r="A1295" t="s">
-        <v>2576</v>
-      </c>
-      <c r="B1295" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1295" t="s">
-        <v>2577</v>
-      </c>
-      <c r="D1295" t="s">
-        <v>2578</v>
-      </c>
-    </row>
-    <row r="1296" spans="1:4">
-      <c r="A1296" t="s">
-        <v>2579</v>
-      </c>
-      <c r="B1296" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1296" t="s">
-        <v>2228</v>
-      </c>
-    </row>
-    <row r="1297" spans="1:4">
-      <c r="A1297" t="s">
-        <v>2580</v>
-      </c>
-      <c r="B1297" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1297" t="s">
-        <v>2581</v>
-      </c>
-    </row>
-    <row r="1298" spans="1:4">
-      <c r="A1298" t="s">
-        <v>2582</v>
-      </c>
-      <c r="B1298" t="s">
-        <v>2129</v>
-      </c>
-      <c r="D1298" t="s">
-        <v>2583</v>
-      </c>
-    </row>
-    <row r="1299" spans="1:4">
-      <c r="A1299" t="s">
-        <v>2584</v>
-      </c>
-      <c r="B1299" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1299" t="s">
-        <v>2585</v>
-      </c>
-    </row>
-    <row r="1300" spans="1:4">
-      <c r="A1300" t="s">
-        <v>2586</v>
-      </c>
-      <c r="B1300" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1300" t="s">
-        <v>2587</v>
-      </c>
-    </row>
-    <row r="1301" spans="1:4">
-      <c r="A1301" t="s">
-        <v>2588</v>
-      </c>
-      <c r="B1301" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1301" t="s">
-        <v>2589</v>
-      </c>
-      <c r="D1301" t="s">
-        <v>2590</v>
-      </c>
-    </row>
-    <row r="1302" spans="1:4">
-      <c r="A1302" t="s">
-        <v>2591</v>
-      </c>
-      <c r="B1302" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1302" t="s">
-        <v>2592</v>
-      </c>
-    </row>
-    <row r="1303" spans="1:4">
-      <c r="A1303" t="s">
-        <v>2593</v>
-      </c>
-      <c r="B1303" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1303" t="s">
-        <v>2594</v>
-      </c>
-      <c r="D1303" t="s">
-        <v>2595</v>
-      </c>
-    </row>
-    <row r="1304" spans="1:4">
-      <c r="A1304" t="s">
-        <v>2596</v>
-      </c>
-      <c r="B1304" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1304" t="s">
-        <v>2597</v>
-      </c>
-      <c r="D1304" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="1305" spans="1:4">
-      <c r="A1305" t="s">
-        <v>2598</v>
-      </c>
-      <c r="B1305" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1305" t="s">
-        <v>2599</v>
-      </c>
-      <c r="D1305" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="1306" spans="1:4">
-      <c r="A1306" t="s">
-        <v>2600</v>
-      </c>
-      <c r="B1306" t="s">
-        <v>324</v>
-      </c>
-      <c r="C1306" t="s">
-        <v>2601</v>
-      </c>
-      <c r="D1306" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1307" spans="1:4">
-      <c r="A1307" t="s">
-        <v>2602</v>
-      </c>
-      <c r="B1307" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1307" t="s">
-        <v>2603</v>
-      </c>
-    </row>
-    <row r="1308" spans="1:4">
-      <c r="A1308" t="s">
-        <v>2604</v>
-      </c>
-      <c r="B1308" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1308" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1308" t="s">
-        <v>2605</v>
-      </c>
-    </row>
-    <row r="1309" spans="1:4">
-      <c r="A1309" t="s">
-        <v>2606</v>
-      </c>
-      <c r="B1309" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1309" t="s">
-        <v>2607</v>
-      </c>
-      <c r="D1309" t="s">
-        <v>2608</v>
-      </c>
-    </row>
-    <row r="1310" spans="1:4">
-      <c r="A1310" t="s">
-        <v>2609</v>
-      </c>
-      <c r="B1310" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1310" t="s">
-        <v>2610</v>
-      </c>
-      <c r="D1310" t="s">
-        <v>2611</v>
-      </c>
-    </row>
-    <row r="1311" spans="1:4">
-      <c r="A1311" t="s">
-        <v>2612</v>
-      </c>
-      <c r="B1311" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1311" t="s">
-        <v>2613</v>
-      </c>
-    </row>
-    <row r="1312" spans="1:4">
-      <c r="A1312" t="s">
-        <v>2614</v>
-      </c>
-      <c r="B1312" t="s">
-        <v>2405</v>
-      </c>
-      <c r="C1312" t="s">
-        <v>2615</v>
-      </c>
-      <c r="D1312" t="s">
-        <v>2616</v>
-      </c>
-    </row>
-    <row r="1313" spans="1:4">
-      <c r="A1313" t="s">
-        <v>2617</v>
-      </c>
-      <c r="B1313" t="s">
-        <v>960</v>
-      </c>
-      <c r="C1313" t="s">
-        <v>2618</v>
-      </c>
-      <c r="D1313" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="1314" spans="1:4">
-      <c r="A1314" t="s">
-        <v>2619</v>
-      </c>
-      <c r="B1314" t="s">
-        <v>2620</v>
-      </c>
-      <c r="C1314" t="s">
-        <v>2621</v>
-      </c>
-      <c r="D1314" t="s">
-        <v>2622</v>
-      </c>
-    </row>
-    <row r="1315" spans="1:4">
-      <c r="A1315" t="s">
-        <v>2623</v>
-      </c>
-      <c r="B1315" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1315" t="s">
-        <v>2613</v>
-      </c>
-    </row>
-    <row r="1316" spans="1:4">
-      <c r="A1316" t="s">
-        <v>2624</v>
-      </c>
-      <c r="B1316" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1316" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1316" t="s">
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="1317" spans="1:4">
-      <c r="A1317" t="s">
-        <v>2626</v>
-      </c>
-      <c r="B1317" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1317" t="s">
-        <v>2627</v>
-      </c>
-    </row>
-    <row r="1318" spans="1:4">
-      <c r="A1318" t="s">
-        <v>2628</v>
-      </c>
-      <c r="B1318" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1318" t="s">
-        <v>2629</v>
-      </c>
-      <c r="D1318" t="s">
-        <v>2630</v>
-      </c>
-    </row>
-    <row r="1319" spans="1:4">
-      <c r="A1319" t="s">
-        <v>2631</v>
-      </c>
-      <c r="B1319" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1319" t="s">
-        <v>2632</v>
-      </c>
-      <c r="D1319" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="1320" spans="1:4">
-      <c r="A1320" t="s">
-        <v>2633</v>
-      </c>
-      <c r="B1320" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1320" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="1321" spans="1:4">
-      <c r="A1321" t="s">
-        <v>2634</v>
-      </c>
-      <c r="B1321" t="s">
-        <v>2635</v>
-      </c>
-      <c r="C1321" t="s">
-        <v>2636</v>
-      </c>
-      <c r="D1321" t="s">
-        <v>2637</v>
-      </c>
-    </row>
-    <row r="1322" spans="1:4">
-      <c r="A1322" t="s">
-        <v>2638</v>
-      </c>
-      <c r="B1322" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1322" t="s">
-        <v>2639</v>
-      </c>
-      <c r="D1322" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="1323" spans="1:4">
-      <c r="A1323" t="s">
-        <v>2641</v>
-      </c>
-      <c r="B1323" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1323" t="s">
-        <v>2642</v>
-      </c>
-      <c r="D1323" t="s">
-        <v>2643</v>
-      </c>
-    </row>
-    <row r="1324" spans="1:4">
-      <c r="A1324" t="s">
-        <v>2644</v>
-      </c>
-      <c r="B1324" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1324" t="s">
-        <v>2645</v>
-      </c>
-      <c r="D1324" t="s">
-        <v>2646</v>
-      </c>
-    </row>
-    <row r="1325" spans="1:4">
-      <c r="A1325" t="s">
-        <v>2647</v>
-      </c>
-      <c r="B1325" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1325" t="s">
-        <v>2648</v>
-      </c>
-      <c r="D1325" t="s">
-        <v>2649</v>
-      </c>
-    </row>
-    <row r="1326" spans="1:4">
-      <c r="A1326" t="s">
-        <v>2650</v>
-      </c>
-      <c r="B1326" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1326" t="s">
-        <v>2651</v>
-      </c>
-      <c r="D1326" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1327" spans="1:4">
-      <c r="A1327" t="s">
-        <v>2652</v>
-      </c>
-      <c r="B1327" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1327" t="s">
-        <v>2653</v>
-      </c>
-    </row>
-    <row r="1328" spans="1:4">
-      <c r="A1328" t="s">
-        <v>2654</v>
-      </c>
-      <c r="B1328" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1328" t="s">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="1329" spans="1:4">
-      <c r="A1329" t="s">
-        <v>2656</v>
-      </c>
-      <c r="B1329" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1329" t="s">
-        <v>2657</v>
-      </c>
-      <c r="D1329" t="s">
-        <v>2658</v>
-      </c>
-    </row>
-    <row r="1330" spans="1:4">
-      <c r="A1330" t="s">
-        <v>2659</v>
-      </c>
-      <c r="B1330" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1330" t="s">
-        <v>2660</v>
-      </c>
-    </row>
-    <row r="1331" spans="1:4">
-      <c r="A1331" t="s">
-        <v>2661</v>
-      </c>
-      <c r="B1331" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1331" t="s">
-        <v>2662</v>
-      </c>
-      <c r="D1331" t="s">
-        <v>2663</v>
-      </c>
-    </row>
-    <row r="1332" spans="1:4">
-      <c r="A1332" t="s">
-        <v>2664</v>
-      </c>
-      <c r="B1332" t="s">
-        <v>324</v>
-      </c>
-      <c r="C1332" t="s">
-        <v>2665</v>
-      </c>
-      <c r="D1332" t="s">
-        <v>2666</v>
-      </c>
-    </row>
-    <row r="1333" spans="1:4">
-      <c r="A1333" t="s">
-        <v>2667</v>
-      </c>
-      <c r="B1333" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1333" t="s">
-        <v>2668</v>
-      </c>
-      <c r="D1333" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="1334" spans="1:4">
-      <c r="A1334" t="s">
-        <v>2669</v>
-      </c>
-      <c r="B1334" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1334" t="s">
-        <v>2670</v>
-      </c>
-      <c r="D1334" t="s">
-        <v>2671</v>
-      </c>
-    </row>
-    <row r="1335" spans="1:4">
-      <c r="A1335" t="s">
-        <v>2672</v>
-      </c>
-      <c r="B1335" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1335" t="s">
-        <v>2673</v>
-      </c>
-      <c r="D1335" t="s">
-        <v>2674</v>
-      </c>
-    </row>
-    <row r="1336" spans="1:4">
-      <c r="A1336" t="s">
-        <v>2675</v>
-      </c>
-      <c r="B1336" t="s">
-        <v>2676</v>
-      </c>
-      <c r="C1336" t="s">
-        <v>2677</v>
-      </c>
-      <c r="D1336" t="s">
-        <v>2678</v>
-      </c>
-    </row>
-    <row r="1337" spans="1:4">
-      <c r="A1337" t="s">
-        <v>2679</v>
-      </c>
-      <c r="B1337" t="s">
-        <v>237</v>
-      </c>
-      <c r="C1337" t="s">
-        <v>2680</v>
-      </c>
-      <c r="D1337" t="s">
-        <v>2681</v>
-      </c>
-    </row>
-    <row r="1338" spans="1:4">
-      <c r="A1338" t="s">
-        <v>2682</v>
-      </c>
-      <c r="B1338" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C1338" t="s">
-        <v>2683</v>
-      </c>
-      <c r="D1338" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1339" spans="1:4">
-      <c r="A1339" t="s">
-        <v>2684</v>
-      </c>
-      <c r="B1339" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1339" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1339" t="s">
-        <v>2685</v>
-      </c>
-    </row>
-    <row r="1340" spans="1:4">
-      <c r="A1340" t="s">
-        <v>2686</v>
-      </c>
-      <c r="B1340" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1340" t="s">
-        <v>2375</v>
-      </c>
-      <c r="D1340" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1341" spans="1:4">
-      <c r="A1341" t="s">
-        <v>2687</v>
-      </c>
-      <c r="B1341" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1341" t="s">
-        <v>2688</v>
-      </c>
-      <c r="D1341" t="s">
-        <v>2689</v>
-      </c>
-    </row>
-    <row r="1342" spans="1:4">
-      <c r="A1342" t="s">
-        <v>2690</v>
-      </c>
-      <c r="B1342" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1342" t="s">
-        <v>911</v>
-      </c>
-      <c r="D1342" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="1343" spans="1:4">
-      <c r="A1343" t="s">
-        <v>2691</v>
-      </c>
-      <c r="B1343" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1343" t="s">
-        <v>2692</v>
-      </c>
-    </row>
-    <row r="1344" spans="1:4">
-      <c r="A1344" t="s">
-        <v>2693</v>
-      </c>
-      <c r="B1344" t="s">
-        <v>2694</v>
-      </c>
-      <c r="C1344" t="s">
-        <v>2695</v>
-      </c>
-      <c r="D1344" t="s">
-        <v>2696</v>
-      </c>
-    </row>
-    <row r="1345" spans="1:4">
-      <c r="A1345" t="s">
-        <v>2697</v>
-      </c>
-      <c r="B1345" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1345" t="s">
-        <v>2698</v>
-      </c>
-      <c r="D1345" t="s">
-        <v>2699</v>
-      </c>
-    </row>
-    <row r="1346" spans="1:4">
-      <c r="A1346" t="s">
-        <v>2700</v>
-      </c>
-      <c r="B1346" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1346" t="s">
-        <v>2701</v>
-      </c>
-      <c r="D1346" t="s">
-        <v>2702</v>
-      </c>
-    </row>
-    <row r="1347" spans="1:4">
-      <c r="A1347" t="s">
-        <v>2703</v>
-      </c>
-      <c r="B1347" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C1347" t="s">
-        <v>2704</v>
-      </c>
-      <c r="D1347" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="1348" spans="1:4">
-      <c r="A1348" t="s">
-        <v>2705</v>
-      </c>
-      <c r="B1348" t="s">
-        <v>324</v>
-      </c>
-      <c r="C1348" t="s">
-        <v>2706</v>
-      </c>
-      <c r="D1348" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1349" spans="1:4">
-      <c r="A1349" t="s">
-        <v>2707</v>
-      </c>
-      <c r="B1349" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1349" t="s">
-        <v>2708</v>
-      </c>
-      <c r="D1349" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="1350" spans="1:4">
-      <c r="A1350" t="s">
-        <v>2709</v>
-      </c>
-      <c r="B1350" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1350" t="s">
-        <v>2710</v>
-      </c>
-      <c r="D1350" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1351" spans="1:4">
-      <c r="A1351" t="s">
-        <v>2711</v>
-      </c>
-      <c r="B1351" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1351" t="s">
-        <v>2712</v>
-      </c>
-    </row>
-    <row r="1352" spans="1:4">
-      <c r="A1352" t="s">
-        <v>2713</v>
-      </c>
-      <c r="B1352" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1352" t="s">
-        <v>2714</v>
-      </c>
-      <c r="D1352" t="s">
-        <v>2715</v>
-      </c>
-    </row>
-    <row r="1353" spans="1:4">
-      <c r="A1353" t="s">
-        <v>2716</v>
-      </c>
-      <c r="B1353" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1353" t="s">
-        <v>2717</v>
-      </c>
-      <c r="D1353" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1354" spans="1:4">
-      <c r="A1354" t="s">
-        <v>2718</v>
-      </c>
-      <c r="B1354" t="s">
-        <v>2676</v>
-      </c>
-      <c r="C1354" t="s">
-        <v>2719</v>
-      </c>
-      <c r="D1354" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1355" spans="1:4">
-      <c r="A1355" t="s">
-        <v>2720</v>
-      </c>
-      <c r="B1355" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1355" t="s">
-        <v>2721</v>
-      </c>
-      <c r="D1355" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="1356" spans="1:4">
-      <c r="A1356" t="s">
-        <v>2722</v>
-      </c>
-      <c r="B1356" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1356" t="s">
-        <v>2723</v>
-      </c>
-    </row>
-    <row r="1357" spans="1:4">
-      <c r="A1357" t="s">
-        <v>2724</v>
-      </c>
-      <c r="B1357" t="s">
-        <v>856</v>
-      </c>
-      <c r="C1357" t="s">
-        <v>2725</v>
-      </c>
-      <c r="D1357" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="1358" spans="1:4">
-      <c r="A1358" t="s">
-        <v>2726</v>
-      </c>
-      <c r="B1358" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1358" t="s">
-        <v>2597</v>
-      </c>
-      <c r="D1358" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="1359" spans="1:4">
-      <c r="A1359" t="s">
-        <v>2727</v>
-      </c>
-      <c r="B1359" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1359" t="s">
-        <v>2728</v>
-      </c>
-    </row>
-    <row r="1360" spans="1:4">
-      <c r="A1360" t="s">
-        <v>2729</v>
-      </c>
-      <c r="B1360" t="s">
-        <v>2730</v>
-      </c>
-      <c r="C1360" t="s">
-        <v>2731</v>
-      </c>
-      <c r="D1360" t="s">
-        <v>2732</v>
-      </c>
-    </row>
-    <row r="1361" spans="1:4">
-      <c r="A1361" t="s">
-        <v>2733</v>
-      </c>
-      <c r="B1361" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1361" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="1362" spans="1:4">
-      <c r="A1362" t="s">
-        <v>2734</v>
-      </c>
-      <c r="B1362" t="s">
-        <v>237</v>
-      </c>
-      <c r="C1362" t="s">
-        <v>2735</v>
-      </c>
-      <c r="D1362" t="s">
-        <v>2736</v>
-      </c>
-    </row>
-    <row r="1363" spans="1:4">
-      <c r="A1363" t="s">
-        <v>2737</v>
-      </c>
-      <c r="B1363" t="s">
-        <v>324</v>
-      </c>
-      <c r="C1363" t="s">
-        <v>2738</v>
-      </c>
-      <c r="D1363" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1364" spans="1:4">
-      <c r="A1364" t="s">
-        <v>2739</v>
-      </c>
-      <c r="B1364" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1364" t="s">
-        <v>2740</v>
-      </c>
-      <c r="D1364" t="s">
-        <v>2741</v>
-      </c>
-    </row>
-    <row r="1365" spans="1:4">
-      <c r="A1365" t="s">
-        <v>2742</v>
-      </c>
-      <c r="B1365" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1365" t="s">
-        <v>2743</v>
-      </c>
-      <c r="D1365" t="s">
-        <v>2744</v>
-      </c>
-    </row>
-    <row r="1366" spans="1:4">
-      <c r="A1366" t="s">
-        <v>2745</v>
-      </c>
-      <c r="B1366" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1366" t="s">
-        <v>2746</v>
-      </c>
-      <c r="D1366" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="1367" spans="1:4">
-      <c r="A1367" t="s">
-        <v>2747</v>
-      </c>
-      <c r="B1367" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1367" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D1367" t="s">
-        <v>2749</v>
-      </c>
-    </row>
-    <row r="1368" spans="1:4">
-      <c r="A1368" t="s">
-        <v>2750</v>
-      </c>
-      <c r="B1368" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1368" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="1369" spans="1:4">
-      <c r="A1369" t="s">
-        <v>2751</v>
-      </c>
-      <c r="B1369" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1369" t="s">
-        <v>2752</v>
-      </c>
-      <c r="D1369" t="s">
-        <v>2753</v>
-      </c>
-    </row>
-    <row r="1370" spans="1:4">
-      <c r="A1370" t="s">
-        <v>2754</v>
-      </c>
-      <c r="B1370" t="s">
-        <v>234</v>
-      </c>
-      <c r="C1370" t="s">
-        <v>2755</v>
-      </c>
-      <c r="D1370" t="s">
-        <v>2756</v>
-      </c>
-    </row>
-    <row r="1371" spans="1:4">
-      <c r="A1371" t="s">
-        <v>2757</v>
-      </c>
-      <c r="B1371" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1371" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1372" spans="1:4">
-      <c r="A1372" t="s">
-        <v>2758</v>
-      </c>
-      <c r="B1372" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C1372" t="s">
-        <v>2759</v>
-      </c>
-      <c r="D1372" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1373" spans="1:4">
-      <c r="A1373" t="s">
-        <v>2760</v>
-      </c>
-      <c r="B1373" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1373" t="s">
-        <v>2761</v>
-      </c>
-      <c r="D1373" t="s">
-        <v>2762</v>
-      </c>
-    </row>
-    <row r="1374" spans="1:4">
-      <c r="A1374" t="s">
-        <v>2763</v>
-      </c>
-      <c r="B1374" t="s">
-        <v>2764</v>
-      </c>
-      <c r="D1374" t="s"/>
-    </row>
-    <row r="1375" spans="1:4">
-      <c r="A1375" t="s">
-        <v>2765</v>
-      </c>
-      <c r="B1375" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1375" t="s">
-        <v>2766</v>
-      </c>
-      <c r="D1375" t="s">
-        <v>2767</v>
-      </c>
-    </row>
-    <row r="1376" spans="1:4">
-      <c r="A1376" t="s">
-        <v>2768</v>
-      </c>
-      <c r="B1376" t="s">
-        <v>2769</v>
-      </c>
-      <c r="D1376" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="1377" spans="1:4">
-      <c r="A1377" t="s">
-        <v>2770</v>
-      </c>
-      <c r="B1377" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1377" t="s">
-        <v>2771</v>
-      </c>
-    </row>
-    <row r="1378" spans="1:4">
-      <c r="A1378" t="s">
-        <v>2772</v>
-      </c>
-      <c r="B1378" t="s">
-        <v>2773</v>
-      </c>
-      <c r="D1378" t="s">
-        <v>2774</v>
-      </c>
-    </row>
-    <row r="1379" spans="1:4">
-      <c r="A1379" t="s">
-        <v>2775</v>
-      </c>
-      <c r="B1379" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1379" t="s">
-        <v>2776</v>
-      </c>
-      <c r="D1379" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="1380" spans="1:4">
-      <c r="A1380" t="s">
-        <v>2777</v>
-      </c>
-      <c r="B1380" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1380" t="s">
-        <v>2778</v>
-      </c>
-      <c r="D1380" t="s">
-        <v>2779</v>
-      </c>
-    </row>
-    <row r="1381" spans="1:4">
-      <c r="A1381" t="s">
-        <v>2780</v>
-      </c>
-      <c r="B1381" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1381" t="s">
-        <v>2064</v>
-      </c>
-      <c r="D1381" t="s">
-        <v>2671</v>
-      </c>
-    </row>
-    <row r="1382" spans="1:4">
-      <c r="A1382" t="s">
-        <v>2781</v>
-      </c>
-      <c r="B1382" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1382" t="s">
-        <v>2782</v>
-      </c>
-      <c r="D1382" t="s">
-        <v>2783</v>
-      </c>
-    </row>
-    <row r="1383" spans="1:4">
-      <c r="A1383" t="s">
-        <v>2784</v>
-      </c>
-      <c r="B1383" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1383" t="s">
-        <v>2785</v>
-      </c>
-    </row>
-    <row r="1384" spans="1:4">
-      <c r="A1384" t="s">
-        <v>2786</v>
-      </c>
-      <c r="B1384" t="s">
-        <v>2787</v>
-      </c>
-      <c r="C1384" t="s">
-        <v>2788</v>
-      </c>
-      <c r="D1384" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="1385" spans="1:4">
-      <c r="A1385" t="s">
-        <v>2789</v>
-      </c>
-      <c r="B1385" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1385" t="s">
-        <v>2790</v>
-      </c>
-      <c r="D1385" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="1386" spans="1:4">
-      <c r="A1386" t="s">
-        <v>2791</v>
-      </c>
-      <c r="B1386" t="s">
-        <v>512</v>
-      </c>
-      <c r="C1386" t="s">
-        <v>2792</v>
-      </c>
-      <c r="D1386" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1387" spans="1:4">
-      <c r="A1387" t="s">
-        <v>2793</v>
-      </c>
-      <c r="B1387" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1387" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D1387" t="s">
-        <v>2795</v>
-      </c>
-    </row>
-    <row r="1388" spans="1:4">
-      <c r="A1388" t="s">
-        <v>2796</v>
-      </c>
-      <c r="B1388" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1388" t="s">
-        <v>2797</v>
-      </c>
-      <c r="D1388" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="1389" spans="1:4">
-      <c r="A1389" t="s">
-        <v>2798</v>
-      </c>
-      <c r="B1389" t="s">
-        <v>2799</v>
-      </c>
-      <c r="C1389" t="s">
-        <v>2800</v>
-      </c>
-      <c r="D1389" t="s">
-        <v>2801</v>
-      </c>
-    </row>
-    <row r="1390" spans="1:4">
-      <c r="A1390" t="s">
-        <v>2802</v>
-      </c>
-      <c r="B1390" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1390" t="s">
-        <v>2803</v>
-      </c>
-      <c r="D1390" t="s">
-        <v>2611</v>
-      </c>
-    </row>
-    <row r="1391" spans="1:4">
-      <c r="A1391" t="s">
-        <v>2804</v>
-      </c>
-      <c r="B1391" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1391" t="s">
-        <v>2805</v>
-      </c>
-      <c r="D1391" t="s">
-        <v>2674</v>
-      </c>
-    </row>
-    <row r="1392" spans="1:4">
-      <c r="A1392" t="s">
-        <v>2806</v>
-      </c>
-      <c r="B1392" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1392" t="s">
-        <v>914</v>
-      </c>
-      <c r="D1392" t="s">
-        <v>2807</v>
-      </c>
-    </row>
-    <row r="1393" spans="1:4">
-      <c r="A1393" t="s">
-        <v>2808</v>
-      </c>
-      <c r="B1393" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1393" t="s">
-        <v>2809</v>
-      </c>
-    </row>
-    <row r="1394" spans="1:4">
-      <c r="A1394" t="s">
-        <v>2810</v>
-      </c>
-      <c r="B1394" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1394" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1395" spans="1:4">
-      <c r="A1395" t="s">
-        <v>2811</v>
-      </c>
-      <c r="B1395" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1395" t="s">
-        <v>2812</v>
-      </c>
-      <c r="D1395" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="1396" spans="1:4">
-      <c r="A1396" t="s">
-        <v>2813</v>
-      </c>
-      <c r="B1396" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1396" t="s">
-        <v>2743</v>
-      </c>
-      <c r="D1396" t="s">
-        <v>2814</v>
-      </c>
-    </row>
-    <row r="1397" spans="1:4">
-      <c r="A1397" t="s">
-        <v>2815</v>
-      </c>
-      <c r="B1397" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C1397" t="s">
-        <v>2816</v>
-      </c>
-      <c r="D1397" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="1398" spans="1:4">
-      <c r="A1398" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B1398" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1398" t="s">
-        <v>2818</v>
-      </c>
-      <c r="D1398" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="1399" spans="1:4">
-      <c r="A1399" t="s">
-        <v>2819</v>
-      </c>
-      <c r="B1399" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1399" t="s">
-        <v>2820</v>
-      </c>
-      <c r="D1399" t="s">
-        <v>2753</v>
-      </c>
-    </row>
-    <row r="1400" spans="1:4">
-      <c r="A1400" t="s">
-        <v>2821</v>
-      </c>
-      <c r="B1400" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1400" t="s">
-        <v>2822</v>
-      </c>
-      <c r="D1400" t="s">
-        <v>2823</v>
-      </c>
-    </row>
-    <row r="1401" spans="1:4">
-      <c r="A1401" t="s">
-        <v>2824</v>
-      </c>
-      <c r="B1401" t="s">
-        <v>2825</v>
-      </c>
-      <c r="D1401" t="s">
-        <v>2826</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/task2_train_reformat_cleaned.xlsx
+++ b/data/task2_train_reformat_cleaned.xlsx
@@ -29,7 +29,7 @@
     <t>转移部位</t>
   </si>
   <si>
-    <t>1、支气管炎、肺气肿；2、左肺上叶肿块考虑周围性肺癌；左肺门淋巴结增大，考虑为转移；3、右肺中叶改变，考虑为发育不全；4、右侧肩胛下内侧弹力纤维瘤；5、气管憩室；6、甲状腺右叶低密度灶；胃窦壁增厚，请结合临床。左肺上叶可见类圆形肿块影，大小约2.0CM×3.0CM，CT值约32HU，增强CT扫描：三期CT值分别为43HU、53HU、75HU，可见部分支气管分支闭塞、狭窄；右肺中叶体积减小，见片状高密度影，内可见轻度扩张支气管影；两肺透过度增强，两肺野内见多发囊状透光区；两肺纹理稀疏、紊乱。左肺门淋巴结稍大，直径约1.4CM。纵隔内多发小淋巴结。两胸腔无积液征象。主动脉及冠脉钙化。右侧肩胛下内侧见片状软组织密度影，约为2.2CM×5.1CM。气管憩室。甲状腺右叶密度减低，强化程度低于正常甲状腺组织。胃窦壁增厚。</t>
+    <t>1、支气管炎、肺气肿;2、左肺上叶肿块考虑周围性肺癌;左肺门淋巴结增大,考虑为转移;3、右肺中叶改变,考虑为发育不全;4、右侧肩胛下内侧弹力纤维瘤;5、气管憩室;6、甲状腺右叶低密度灶;胃窦壁增厚,请结合临床。左肺上叶可见类圆形肿块影,大小约2.0CM×3.0CM,CT值约32HU,增强CT扫描:三期CT值分别为43HU、53HU、75HU,可见部分支气管分支闭塞、狭窄;右肺中叶体积减小,见片状高密度影,内可见轻度扩张支气管影;两肺透过度增强,两肺野内见多发囊状透光区;两肺纹理稀疏、紊乱。左肺门淋巴结稍大,直径约1.4CM。纵隔内多发小淋巴结。两胸腔无积液征象。主动脉及冠脉钙化。右侧肩胛下内侧见片状软组织密度影,约为2.2CM×5.1CM。气管憩室。甲状腺右叶密度减低,强化程度低于正常甲状腺组织。胃窦壁增厚。</t>
   </si>
   <si>
     <t>左肺上叶</t>
@@ -41,7 +41,7 @@
     <t>左肺门淋巴结</t>
   </si>
   <si>
-    <t>1.胃体部胃壁增厚，考虑为胃癌，侵及浆膜层，合并小弯侧及腹主动脉旁多发淋巴结转移，胃左动脉供血；2.肝左叶小囊肿；3.右肾上极小囊肿。胃体部胃壁增厚，平扫时CT值约为35HU，增强后呈不均匀强化，动脉期、静脉期及平衡期CT值分别约为59HU、74HU及73HU；最厚处厚度约为1.7CM，胃腔狭窄，浆膜面模糊；胃小弯侧及肾水平以上腹主动脉旁可见多发增大淋巴结影，大者短径约为1.4CM；CTA重建示胃左动脉进入病灶，胃网膜左动脉及胃右动脉显示欠清。肝脏边缘光滑，各叶比例协调，肝左叶可见小圆形低密度影，密度均匀，增强后未见强化，直径约为0.4CM，边缘光滑，界限清晰。右肾上极可见小圆形低密度影，界清光滑。脾脏、胰腺、左肾形态及大小未见异常，其内未见异常密度影，增强后未见异常强化影。胆囊形态及大小未见异常，壁未见增厚，其内未见异常密度影及异常强化影。膀胱充盈良好，壁未见增厚，其内未见异常密度影，双侧输尿管未见扩张。盆腔内未见积液征象。</t>
+    <t>1.胃体部胃壁增厚,考虑为胃癌,侵及浆膜层,合并小弯侧及腹主动脉旁多发淋巴结转移,胃左动脉供血;2.肝左叶小囊肿;3.右肾上极小囊肿。胃体部胃壁增厚,平扫时CT值约为35HU,增强后呈不均匀强化,动脉期、静脉期及平衡期CT值分别约为59HU、74HU及73HU;最厚处厚度约为1.7CM,胃腔狭窄,浆膜面模糊;胃小弯侧及肾水平以上腹主动脉旁可见多发增大淋巴结影,大者短径约为1.4CM;CTA重建示胃左动脉进入病灶,胃网膜左动脉及胃右动脉显示欠清。肝脏边缘光滑,各叶比例协调,肝左叶可见小圆形低密度影,密度均匀,增强后未见强化,直径约为0.4CM,边缘光滑,界限清晰。右肾上极可见小圆形低密度影,界清光滑。脾脏、胰腺、左肾形态及大小未见异常,其内未见异常密度影,增强后未见异常强化影。胆囊形态及大小未见异常,壁未见增厚,其内未见异常密度影及异常强化影。膀胱充盈良好,壁未见增厚,其内未见异常密度影,双侧输尿管未见扩张。盆腔内未见积液征象。</t>
   </si>
   <si>
     <t>胃体部</t>
@@ -50,7 +50,7 @@
     <t>小弯侧及腹主动脉旁多发淋巴结</t>
   </si>
   <si>
-    <t>左肺门、左肺上叶团块影，大小约7.68CM×6.58CM，平扫CT值约37HU，增强扫描CT值约55、56、54HU，周围可见斑片状高密度影，边界欠清；左肺上叶支气管截断，左肺动脉受侵犯。右肺水平裂(42)、左肺下叶(21、33)粟粒灶。两肺纹理清晰。右肺门区未见异常。纵隔内未见异常增大的淋巴结。两胸腔未见积液征象。所示双侧肾上腺区团块影，脾脏内低密度影，肝脏内囊性低密度影。1.左肺门、左肺上叶占位，考虑中央型肺癌可能大，左肺动脉受侵，左肺上叶阻塞性炎症；2.双肺粟粒灶；请随诊；3.所示腹部病变，部分转移征象可能，请详查。</t>
+    <t>左肺门、左肺上叶团块影,大小约7.68CM×6.58CM,平扫CT值约37HU,增强扫描CT值约55、56、54HU,周围可见斑片状高密度影,边界欠清;左肺上叶支气管截断,左肺动脉受侵犯。右肺水平裂(42)、左肺下叶(21、33)粟粒灶。两肺纹理清晰。右肺门区未见异常。纵隔内未见异常增大的淋巴结。两胸腔未见积液征象。所示双侧肾上腺区团块影,脾脏内低密度影,肝脏内囊性低密度影。1.左肺门、左肺上叶占位,考虑中央型肺癌可能大,左肺动脉受侵,左肺上叶阻塞性炎症;2.双肺粟粒灶;请随诊;3.所示腹部病变,部分转移征象可能,请详查。</t>
   </si>
   <si>
     <t>左肺门,左肺上叶</t>
@@ -62,7 +62,7 @@
     <t>腹部</t>
   </si>
   <si>
-    <t>与2012-06-28片对比：1.左肺下叶中心型肺癌，纵隔淋巴结转移，较前相仿；2.右肺门增大并右肺下叶内侧基底段磨玻璃密度影，考虑肿大淋巴结压迫支气管所致阻塞性肺炎；3.右侧胸膜局部肥厚；4.肝脏多发低密度影，腹膜后多发肿大淋巴结影，建议详查。左肺下叶可见不规则软组织密度影，最大横断面约为6.0CM×6.4CM，边界尚清晰，其内密度均匀，CT值26HU，下叶后基底段支气管闭塞，增强后明显强化，各期CT值依次为74HU、53HU、49HU。右肺下叶内基底段可见磨玻璃密度影，直径约1.9CM。纵隔内可见增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。右侧局部胸膜增厚。所示肝脏可见多发类圆形稍低密度影。胆囊内可见多发类圆形高密度影，胃壁增厚，腹膜后多发结节影。</t>
+    <t>与2012-06-28片对比:1.左肺下叶中心型肺癌,纵隔淋巴结转移,较前相仿;2.右肺门增大并右肺下叶内侧基底段磨玻璃密度影,考虑肿大淋巴结压迫支气管所致阻塞性肺炎;3.右侧胸膜局部肥厚;4.肝脏多发低密度影,腹膜后多发肿大淋巴结影,建议详查。左肺下叶可见不规则软组织密度影,最大横断面约为6.0CM×6.4CM,边界尚清晰,其内密度均匀,CT值26HU,下叶后基底段支气管闭塞,增强后明显强化,各期CT值依次为74HU、53HU、49HU。右肺下叶内基底段可见磨玻璃密度影,直径约1.9CM。纵隔内可见增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。右侧局部胸膜增厚。所示肝脏可见多发类圆形稍低密度影。胆囊内可见多发类圆形高密度影,胃壁增厚,腹膜后多发结节影。</t>
   </si>
   <si>
     <t>左肺下叶</t>
@@ -74,7 +74,7 @@
     <t>纵隔淋巴结</t>
   </si>
   <si>
-    <t>右肺上叶见团块状软组织密度灶，约为5.8CM×4.2CM，CT值约为35HU，周围见胸膜粘连、凹陷，邻近右肺上叶部分支气管受压、截断；增强扫描，动脉期其内见强化血管影，静脉期、延迟期密度较高约为64HU，强化不均匀。双肺内散在纤维索条影及小结节灶。双肺下叶近胸膜下分别见一病灶，呈磨玻璃密度，并可见实性结节，较大者直径约为1.5CM。双肺下叶见斑片状稍高密度影。右肺门区见多个肿大淋巴结影，最大者直径约为1.0CM，中度均匀强化。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。双侧胸膜略增厚。心脏大血管未见异常。所示甲状腺右叶见稍低密度灶。肝内见多发低密度灶，无强化。胸椎可见多发低密度影及片状高密度影。1.右肺上叶肺癌，伴右肺门、纵隔淋巴结转移；2.右肺下叶病灶，不除外原发性肺癌；3.支气管炎；双肺多发小结节及纤维索条影，请随诊；4.甲状腺右叶病变；肝内多发囊肿，肝内导管扩张，请结合临床；5.胸椎改变，请结合临床除外转移。</t>
+    <t>右肺上叶见团块状软组织密度灶,约为5.8CM×4.2CM,CT值约为35HU,周围见胸膜粘连、凹陷,邻近右肺上叶部分支气管受压、截断;增强扫描,动脉期其内见强化血管影,静脉期、延迟期密度较高约为64HU,强化不均匀。双肺内散在纤维索条影及小结节灶。双肺下叶近胸膜下分别见一病灶,呈磨玻璃密度,并可见实性结节,较大者直径约为1.5CM。双肺下叶见斑片状稍高密度影。右肺门区见多个肿大淋巴结影,最大者直径约为1.0CM,中度均匀强化。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。双侧胸膜略增厚。心脏大血管未见异常。所示甲状腺右叶见稍低密度灶。肝内见多发低密度灶,无强化。胸椎可见多发低密度影及片状高密度影。1.右肺上叶肺癌,伴右肺门、纵隔淋巴结转移;2.右肺下叶病灶,不除外原发性肺癌;3.支气管炎;双肺多发小结节及纤维索条影,请随诊;4.甲状腺右叶病变;肝内多发囊肿,肝内导管扩张,请结合临床;5.胸椎改变,请结合临床除外转移。</t>
   </si>
   <si>
     <t>右肺上叶</t>
@@ -83,7 +83,7 @@
     <t>5.8CM×4.2CM</t>
   </si>
   <si>
-    <t>左肺上叶舌段(36)可见结节影，大小约1.94CM×1.76CM，CT值约26HU，边缘可见毛刺邻近胸膜牵拉；左肺上叶(28)见小结节影，径约0.6CM。双肺散在少许斑片状稍高密度影，边界模糊不清。左肺下叶背段索条灶、粟粒灶，局部牵拉支气管扩张。双肺下叶多发索条灶；双肺上叶胸膜下多发透亮小泡影。纵隔内及左肺门见增大淋巴结，大者短径约1.4CM。两胸腔未见积液征象。双侧胸膜增厚。主动脉、冠脉壁见致密影。1.左肺上叶舌段周围型肺癌，纵隔与左肺门多发淋巴结转移，较前2016-09-25CT进展；2.左肺上叶小结节，较前新发；3.双肺多发节段性炎症，较前减轻；双肺下叶机化性病灶，较前相仿；4.双肺上叶小叶间隔旁气肿；5.双侧胸膜增厚。</t>
+    <t>左肺上叶舌段(36)可见结节影,大小约1.94CM×1.76CM,CT值约26HU,边缘可见毛刺邻近胸膜牵拉;左肺上叶(28)见小结节影,径约0.6CM。双肺散在少许斑片状稍高密度影,边界模糊不清。左肺下叶背段索条灶、粟粒灶,局部牵拉支气管扩张。双肺下叶多发索条灶;双肺上叶胸膜下多发透亮小泡影。纵隔内及左肺门见增大淋巴结,大者短径约1.4CM。两胸腔未见积液征象。双侧胸膜增厚。主动脉、冠脉壁见致密影。1.左肺上叶舌段周围型肺癌,纵隔与左肺门多发淋巴结转移,较前2016-09-25CT进展;2.左肺上叶小结节,较前新发;3.双肺多发节段性炎症,较前减轻;双肺下叶机化性病灶,较前相仿;4.双肺上叶小叶间隔旁气肿;5.双侧胸膜增厚。</t>
   </si>
   <si>
     <t>左肺上叶舌段</t>
@@ -92,7 +92,7 @@
     <t>1.94CM×1.76CM</t>
   </si>
   <si>
-    <t>胸廓前后径增宽。双肺支气管血管束增粗、模糊，部分肺野密度不均匀。右肺下叶可见不规则结节状稍高密度影，边缘稍毛糙，邻近支气管分支截断，径约为1.8CM，CT值约-6HU，增强三期分别为-32、61、5HU。双肺多发大小不一结节影，大者位于右肺上叶(18)，径约为0.6CM，两肺门区未见异常。纵隔内见一略增大淋巴结影，直径1.3CM。两胸腔无积液征象。主动脉及冠状动脉走行区可见条形钙化影。所示部分胸椎见斑片状高密度影。右侧乳腺见点状钙化灶。1.右肺下叶结节灶，较2015.12.22CT相仿，考虑为周围型肺癌，请结合临床；2.双肺小结节，考虑为转移瘤，较前相仿；3.所示胸椎改变，请结合临床；4.支气管炎，肺气肿。</t>
+    <t>胸廓前后径增宽。双肺支气管血管束增粗、模糊,部分肺野密度不均匀。右肺下叶可见不规则结节状稍高密度影,边缘稍毛糙,邻近支气管分支截断,径约为1.8CM,CT值约-6HU,增强三期分别为-32、61、5HU。双肺多发大小不一结节影,大者位于右肺上叶(18),径约为0.6CM,两肺门区未见异常。纵隔内见一略增大淋巴结影,直径1.3CM。两胸腔无积液征象。主动脉及冠状动脉走行区可见条形钙化影。所示部分胸椎见斑片状高密度影。右侧乳腺见点状钙化灶。1.右肺下叶结节灶,较2015.12.22CT相仿,考虑为周围型肺癌,请结合临床;2.双肺小结节,考虑为转移瘤,较前相仿;3.所示胸椎改变,请结合临床;4.支气管炎,肺气肿。</t>
   </si>
   <si>
     <t>右肺下叶</t>
@@ -101,13 +101,13 @@
     <t>双肺小结节</t>
   </si>
   <si>
-    <t>双肺多发小片状低密度影，右肺下叶见偏心性空洞影，界清，可见胸膜牵拉，与右肺下叶支气管内壁相连，空洞内壁光整，可见气液平面，病灶最大截面(24)径约9.32CM×3.88CM，内部密度不均，内见点状致密影，CT值约为4-41HU，增强扫描三期CT值分别为19-76、8-81、1-81HU，呈中度不均匀强化。后纵隔内见软组织肿块影，边界较清，局部压迫食管，最大截面(38)径约2.91CM×4.84CM，CT值约为42HU，增强三期分别为78、66、66HU。两肺门区未见异常。所示气管支气管影通畅。纵隔内见稍大淋巴结，短径约0.93CM。右胸腔少量积液。右侧胸膜局部粘连增厚。心脏不大，主动脉管壁见条形致密影。双侧腋窝多发小淋巴结。1、考虑右肺下叶周围型肺癌(厚壁空洞形成)伴纵隔淋巴结转移，右侧胸腔少量积液，伴胸膜增厚，请结合临床；2、轻度肺气肿。</t>
+    <t>双肺多发小片状低密度影,右肺下叶见偏心性空洞影,界清,可见胸膜牵拉,与右肺下叶支气管内壁相连,空洞内壁光整,可见气液平面,病灶最大截面(24)径约9.32CM×3.88CM,内部密度不均,内见点状致密影,CT值约为4-41HU,增强扫描三期CT值分别为19-76、8-81、1-81HU,呈中度不均匀强化。后纵隔内见软组织肿块影,边界较清,局部压迫食管,最大截面(38)径约2.91CM×4.84CM,CT值约为42HU,增强三期分别为78、66、66HU。两肺门区未见异常。所示气管支气管影通畅。纵隔内见稍大淋巴结,短径约0.93CM。右胸腔少量积液。右侧胸膜局部粘连增厚。心脏不大,主动脉管壁见条形致密影。双侧腋窝多发小淋巴结。1、考虑右肺下叶周围型肺癌(厚壁空洞形成)伴纵隔淋巴结转移,右侧胸腔少量积液,伴胸膜增厚,请结合临床;2、轻度肺气肿。</t>
   </si>
   <si>
     <t>9.32CM×3.88CM</t>
   </si>
   <si>
-    <t>与2015-01-15CT相比：1.右肺中央型肺癌，较前肿块明显减小，纵隔淋巴结转移，较前减小、减少；2.前片示右肺下叶背段结节，此次未见显示；3.慢性支气管炎、肺气肿改变；4.胆囊结石，副脾，均较前相仿，请结合腹部检查。双肺纹理增强、紊乱，局部支气管壁增厚，边缘模糊。双肺透过度增高，可见多发小圆形透亮影；右肺门略增大，可见少许软组织密度影包绕右肺门区支气管血管束，大小约2.2CM×2.1CM，平扫CT值约40HU，增强扫描呈轻中度强化，三期CT值分别约50HU、60HU、66HU；支气管管壁增厚，管腔略变窄。主动脉肺窗内见增大的淋巴结，边界模糊，短径约2.6CM，增强扫描呈环形强化。所示胆囊体积明显增大，其内可见结节状致密影，径约1.29CM。所示脾脏前端可见小圆形等密度影，增强扫描呈均匀强化。</t>
+    <t>与2015-01-15CT相比:1.右肺中央型肺癌,较前肿块明显减小,纵隔淋巴结转移,较前减小、减少;2.前片示右肺下叶背段结节,此次未见显示;3.慢性支气管炎、肺气肿改变;4.胆囊结石,副脾,均较前相仿,请结合腹部检查。双肺纹理增强、紊乱,局部支气管壁增厚,边缘模糊。双肺透过度增高,可见多发小圆形透亮影;右肺门略增大,可见少许软组织密度影包绕右肺门区支气管血管束,大小约2.2CM×2.1CM,平扫CT值约40HU,增强扫描呈轻中度强化,三期CT值分别约50HU、60HU、66HU;支气管管壁增厚,管腔略变窄。主动脉肺窗内见增大的淋巴结,边界模糊,短径约2.6CM,增强扫描呈环形强化。所示胆囊体积明显增大,其内可见结节状致密影,径约1.29CM。所示脾脏前端可见小圆形等密度影,增强扫描呈均匀强化。</t>
   </si>
   <si>
     <t>右肺门</t>
@@ -116,7 +116,7 @@
     <t>2.2CM×2.1CM</t>
   </si>
   <si>
-    <t>1.结合临床，右乳癌术后，纵隔、双肺门淋巴结较前(2016-07-13)片变化不著，左肺转移，较前好转；左肾上腺饱满，较前变化不著；骨转移，较前变化不著2.双肺炎症，基本变化不著3.心包少量积液，变化不著4.脂肪肝，肝囊肿；左肾囊肿右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见小淋巴结，大者直径约0.5CM。左肺野示数个结节灶，大者直径约0.5CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质密度减低，内可见囊性密度灶。左肾上腺饱满。胆、胰、脾及扫描野内右肾未见异常。左肾示直径约3.0CM的囊性密度灶。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示成骨性及混合性骨质破坏。</t>
+    <t>1.结合临床,右乳癌术后,纵隔、双肺门淋巴结较前(2016-07-13)片变化不著,左肺转移,较前好转;左肾上腺饱满,较前变化不著;骨转移,较前变化不著2.双肺炎症,基本变化不著3.心包少量积液,变化不著4.脂肪肝,肝囊肿;左肾囊肿右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见小淋巴结,大者直径约0.5CM。左肺野示数个结节灶,大者直径约0.5CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质密度减低,内可见囊性密度灶。左肾上腺饱满。胆、胰、脾及扫描野内右肾未见异常。左肾示直径约3.0CM的囊性密度灶。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示成骨性及混合性骨质破坏。</t>
   </si>
   <si>
     <t>右乳</t>
@@ -125,7 +125,7 @@
     <t>左肺,骨</t>
   </si>
   <si>
-    <t>右侧胸廓塌陷，右肺体积减小，纵隔右移，右肺下叶见团块状高密度影，形态不规则，边界不清楚，较大层面大小约9.15CM×6.12CM，CT值约21HU，右侧主支气管及各叶支气管受压变窄；右肺小叶间隔增厚，右侧胸膜弥漫性增厚，右侧胸腔可见包裹性积液；右侧腋窝、纵隔淋巴结增大，大者短径约1.53CM。左肺下叶外基底段(S23)可见粟粒影。心包增厚，见弧形液体密度影，右侧第2、4、6、7、8肋骨、胸3、12椎体骨质密度不均匀增高，形态不规整。右第1肋欠整，右侧乳腺内见一结节影，径约1.01CM，边界清晰，其内见点状钙化。1.右下肺中心型肺癌，右肺淋巴道转移，右侧胸膜转移，右侧胸腔包裹性积液；右侧腋窝及纵隔淋巴结转移；右侧多个肋骨、胸3、12椎体成骨性转移，较2014.03.25胸部CT，右肺病变有所进展；2.心包积液，较前新发；3.左肺下叶外基底段粟粒灶，右乳钙化结节；右侧第1肋骨欠规整，较前相仿。</t>
+    <t>右侧胸廓塌陷,右肺体积减小,纵隔右移,右肺下叶见团块状高密度影,形态不规则,边界不清楚,较大层面大小约9.15CM×6.12CM,CT值约21HU,右侧主支气管及各叶支气管受压变窄;右肺小叶间隔增厚,右侧胸膜弥漫性增厚,右侧胸腔可见包裹性积液;右侧腋窝、纵隔淋巴结增大,大者短径约1.53CM。左肺下叶外基底段(S23)可见粟粒影。心包增厚,见弧形液体密度影,右侧第2、4、6、7、8肋骨、胸3、12椎体骨质密度不均匀增高,形态不规整。右第1肋欠整,右侧乳腺内见一结节影,径约1.01CM,边界清晰,其内见点状钙化。1.右下肺中心型肺癌,右肺淋巴道转移,右侧胸膜转移,右侧胸腔包裹性积液;右侧腋窝及纵隔淋巴结转移;右侧多个肋骨、胸3、12椎体成骨性转移,较2014.03.25胸部CT,右肺病变有所进展;2.心包积液,较前新发;3.左肺下叶外基底段粟粒灶,右乳钙化结节;右侧第1肋骨欠规整,较前相仿。</t>
   </si>
   <si>
     <t>9.15CM×6.12CM</t>
@@ -134,7 +134,7 @@
     <t>右侧胸膜,纵隔淋巴结,肋骨,胸3、12椎体,右肺淋巴道</t>
   </si>
   <si>
-    <t>右肺中叶、下叶及左肺下叶见多发小结节影，大者径约0.45CM。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。所示左乳内见团块影，大小约为1.57CM×1.41CM，CT值约52HU，边缘不光整，见毛刺。右乳见多发团块，大者1.41CM×1.73CM；较小者大小约为0.83CM×0.93CM，其内见点状钙化灶。右侧腋窝见一直径约1.08CM类圆形淋巴结。1.双肺多发结节，考虑转移可能性大，建议对比原片；2.双乳占位，考虑双乳癌，右侧腋窝淋巴结增大，请结合临床。</t>
+    <t>右肺中叶、下叶及左肺下叶见多发小结节影,大者径约0.45CM。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。所示左乳内见团块影,大小约为1.57CM×1.41CM,CT值约52HU,边缘不光整,见毛刺。右乳见多发团块,大者1.41CM×1.73CM;较小者大小约为0.83CM×0.93CM,其内见点状钙化灶。右侧腋窝见一直径约1.08CM类圆形淋巴结。1.双肺多发结节,考虑转移可能性大,建议对比原片;2.双乳占位,考虑双乳癌,右侧腋窝淋巴结增大,请结合临床。</t>
   </si>
   <si>
     <t>左乳,右乳</t>
@@ -146,7 +146,7 @@
     <t>双肺</t>
   </si>
   <si>
-    <t>右肺上叶周围型肺癌，双肺多发转移瘤，纵隔淋巴结转移，双侧胸腔积液、心包积液，胸椎骨质破坏，较前(2015.7.15)进展。右肺上叶纵隔旁见椭圆形肿块影，大小约5.1CM×2.7CM，CT值19HU；两肺多发大小不等的结节影，大者直径约2.8CM。右肺上叶后段支气管截断。两肺门影增大。纵隔内多发增大的淋巴结，大者短径约2.0CM，其内见钙化灶。两胸腔见积液征象，右侧为著。冠脉钙化。心包积液。上胸椎骨质破坏，周围见软组织肿块影。</t>
+    <t>右肺上叶周围型肺癌,双肺多发转移瘤,纵隔淋巴结转移,双侧胸腔积液、心包积液,胸椎骨质破坏,较前(2015.7.15)进展。右肺上叶纵隔旁见椭圆形肿块影,大小约5.1CM×2.7CM,CT值19HU;两肺多发大小不等的结节影,大者直径约2.8CM。右肺上叶后段支气管截断。两肺门影增大。纵隔内多发增大的淋巴结,大者短径约2.0CM,其内见钙化灶。两胸腔见积液征象,右侧为著。冠脉钙化。心包积液。上胸椎骨质破坏,周围见软组织肿块影。</t>
   </si>
   <si>
     <t>5.1CM×2.7CM</t>
@@ -155,7 +155,7 @@
     <t>双肺,纵隔淋巴结</t>
   </si>
   <si>
-    <t>1.右肺下叶结节，考虑周围型肺癌，并纵隔及右肺门淋巴结转移，右肺门区及右肺中叶阻塞性肺炎，右肺上叶前段淋巴道转移可能；2.左肺下叶外底段小结节灶，随诊；3.所示脾门软组织影，请结合腹部检查；4.左侧第3侧肋欠规整。右肺下叶外底段可见结节影，径约2.3CM，边缘可见毛刺及胸膜牵拉征，平扫CT值约为28HU，增强扫描三期CT值分别为75HU、58HU、60HU。右肺门可见斑片状高密度影，增强扫描可见明显强化，右肺门支气管管壁增厚，管腔狭窄，右肺中叶部分不张实变。右肺上叶前段可见斑片状稍高密度影，其内可见支气管管壁增厚。左肺下叶外底段可见结节影。双肺纹理增多。纵隔、右肺门可见多发增大的淋巴结，大者径约1.3CM。所示脾门区软组织影。左侧第3侧肋欠规整。</t>
+    <t>1.右肺下叶结节,考虑周围型肺癌,并纵隔及右肺门淋巴结转移,右肺门区及右肺中叶阻塞性肺炎,右肺上叶前段淋巴道转移可能;2.左肺下叶外底段小结节灶,随诊;3.所示脾门软组织影,请结合腹部检查;4.左侧第3侧肋欠规整。右肺下叶外底段可见结节影,径约2.3CM,边缘可见毛刺及胸膜牵拉征,平扫CT值约为28HU,增强扫描三期CT值分别为75HU、58HU、60HU。右肺门可见斑片状高密度影,增强扫描可见明显强化,右肺门支气管管壁增厚,管腔狭窄,右肺中叶部分不张实变。右肺上叶前段可见斑片状稍高密度影,其内可见支气管管壁增厚。左肺下叶外底段可见结节影。双肺纹理增多。纵隔、右肺门可见多发增大的淋巴结,大者径约1.3CM。所示脾门区软组织影。左侧第3侧肋欠规整。</t>
   </si>
   <si>
     <t>2.3CM</t>
@@ -164,7 +164,7 @@
     <t>右肺门淋巴结,右肺上叶前段淋巴道</t>
   </si>
   <si>
-    <t>前中纵隔内可见弥漫性软组织密度影，密度不均匀，边界不清，增强扫描呈明显不均匀性强化，平扫及三期CT值为28、80、92、102HU，隐约可见结节融合改变。右肺上叶胸膜下、右肺中叶见结节影，径约0.4CM。右肺中叶及左肺下叶见索条影。两胸腔可见较多积液征象，肝实质内可见多发类圆形低密度影。双肺内可见多发索条影。1、前中纵隔占位性病变，双侧胸腔积液，考虑恶性肿瘤(侵袭性胸腺瘤可能性大，不除外生殖细胞肿瘤)，请结合实验室检查；2、右肺上叶、中叶结节，双肺多发索条灶，请随诊；3.肝内多发低密度影，不除外转移瘤。</t>
+    <t>前中纵隔内可见弥漫性软组织密度影,密度不均匀,边界不清,增强扫描呈明显不均匀性强化,平扫及三期CT值为28、80、92、102HU,隐约可见结节融合改变。右肺上叶胸膜下、右肺中叶见结节影,径约0.4CM。右肺中叶及左肺下叶见索条影。两胸腔可见较多积液征象,肝实质内可见多发类圆形低密度影。双肺内可见多发索条影。1、前中纵隔占位性病变,双侧胸腔积液,考虑恶性肿瘤(侵袭性胸腺瘤可能性大,不除外生殖细胞肿瘤),请结合实验室检查;2、右肺上叶、中叶结节,双肺多发索条灶,请随诊;3.肝内多发低密度影,不除外转移瘤。</t>
   </si>
   <si>
     <t>胸腺</t>
@@ -173,7 +173,7 @@
     <t>肝,肝</t>
   </si>
   <si>
-    <t>右肺中叶见团块影，边界不清，径约2.5CM×3.4CM，CT值约39HU，增强三期分别为54、58、67HU。右肺尖(55)、右肺上叶(39)、下叶后基底段(36)、下叶基底段(28)小结节影，径约0.3CM。右肺下叶背段(39)淡片影，径约1.0CM。两肺门区未见异常。右肺下叶支气管轻度扩张，管壁稍增厚，多发小叶间隔增粗。纵隔内多发肿大淋巴结，短径约2.5CM，密度较均匀，CT值37HU。两胸腔无积液征象。主动脉壁及冠脉壁见弧形高密度影。全心大，心包稍增厚。左侧锁骨上窝见一淋巴结影，约为2.3CM×2.1CM，CT值32HU。胸11椎体右侧见结节状稍高密度影，直径0.9CM。腰1椎体见片状不规则高密度影。1.右肺中叶周围型肺癌，纵隔多发淋巴结转移；较2016.4.21相仿；2.右肺下叶背段结节，较前密度变淡；3.双肺小结节，较前相仿；4.右肺下叶支气管轻度扩张，小叶间隔增粗；5.全心增大，心包少量积液；6.右侧锁骨上淋巴结增大，胸11椎体右侧高密度影，转移可能，建议详查；腰1骨质增生；请随诊。</t>
+    <t>右肺中叶见团块影,边界不清,径约2.5CM×3.4CM,CT值约39HU,增强三期分别为54、58、67HU。右肺尖(55)、右肺上叶(39)、下叶后基底段(36)、下叶基底段(28)小结节影,径约0.3CM。右肺下叶背段(39)淡片影,径约1.0CM。两肺门区未见异常。右肺下叶支气管轻度扩张,管壁稍增厚,多发小叶间隔增粗。纵隔内多发肿大淋巴结,短径约2.5CM,密度较均匀,CT值37HU。两胸腔无积液征象。主动脉壁及冠脉壁见弧形高密度影。全心大,心包稍增厚。左侧锁骨上窝见一淋巴结影,约为2.3CM×2.1CM,CT值32HU。胸11椎体右侧见结节状稍高密度影,直径0.9CM。腰1椎体见片状不规则高密度影。1.右肺中叶周围型肺癌,纵隔多发淋巴结转移;较2016.4.21相仿;2.右肺下叶背段结节,较前密度变淡;3.双肺小结节,较前相仿;4.右肺下叶支气管轻度扩张,小叶间隔增粗;5.全心增大,心包少量积液;6.右侧锁骨上淋巴结增大,胸11椎体右侧高密度影,转移可能,建议详查;腰1骨质增生;请随诊。</t>
   </si>
   <si>
     <t>右肺中叶</t>
@@ -185,16 +185,16 @@
     <t>胸11椎体</t>
   </si>
   <si>
-    <t>1.结合临床，右乳癌术后，纵隔、双肺门淋巴结较前(2016-10-14)片变化不著，左肺转移，显示不清；左肾上腺饱满，较前变化不著；骨转移，较前变化不著2.双肺炎症，基本变化不著3.心包少量积液，变化不著4.脂肪肝，肝囊肿；左肾囊肿右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见小淋巴结，大者直径约0.5CM。左肺野示数个结节灶，大者直径约0.5CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质密度减低，内可见囊性密度灶。左肾上腺饱满。胆、胰、脾及扫描野内右肾未见异常。左肾示直径约3.0CM的囊性密度灶。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示成骨性及混合性骨质破坏。</t>
-  </si>
-  <si>
-    <t>右肺上叶周围型肺癌，双肺多发转移瘤，纵隔淋巴结转移。右肺上叶纵隔旁可见椭圆形肿块影，大小约5.0CM×1.5CM，CT值42HU；两肺多发大小不等的结节影，大者直径约2.2CM。两肺支气管血管束略增粗。两肺门区未见异常。所示气管支气管影正常。纵隔内多发增大的淋巴结，大者直径约2.2CM，其内可见钙化灶。两胸腔无积液征象。冠脉钙化。</t>
+    <t>1.结合临床,右乳癌术后,纵隔、双肺门淋巴结较前(2016-10-14)片变化不著,左肺转移,显示不清;左肾上腺饱满,较前变化不著;骨转移,较前变化不著2.双肺炎症,基本变化不著3.心包少量积液,变化不著4.脂肪肝,肝囊肿;左肾囊肿右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见小淋巴结,大者直径约0.5CM。左肺野示数个结节灶,大者直径约0.5CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质密度减低,内可见囊性密度灶。左肾上腺饱满。胆、胰、脾及扫描野内右肾未见异常。左肾示直径约3.0CM的囊性密度灶。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示成骨性及混合性骨质破坏。</t>
+  </si>
+  <si>
+    <t>右肺上叶周围型肺癌,双肺多发转移瘤,纵隔淋巴结转移。右肺上叶纵隔旁可见椭圆形肿块影,大小约5.0CM×1.5CM,CT值42HU;两肺多发大小不等的结节影,大者直径约2.2CM。两肺支气管血管束略增粗。两肺门区未见异常。所示气管支气管影正常。纵隔内多发增大的淋巴结,大者直径约2.2CM,其内可见钙化灶。两胸腔无积液征象。冠脉钙化。</t>
   </si>
   <si>
     <t>5.0CM×1.5CM</t>
   </si>
   <si>
-    <t>1、右肺上叶尖段恶性肿瘤，伴纵隔淋巴结多发转移，较2012-05-17CT明显增大；2、支气管炎征象；右肺中叶钙化灶；3、主动脉及冠状动脉硬化；4、轻度食管裂孔疝；左下小膈疝不除外，较前相仿，请结合临床；5、双侧胸膜肥厚。所示支气管血管束增强、紊乱，右肺上叶尖段可见团块影，其内密度稍欠均匀，周边见分叶征及短小毛刺，较大层面大小约4.73CM×5.58CM，CT值约35-45HU；余右肺中叶可见结节状钙化灶；纵隔可见增大的淋巴结影，大者短径约1.87CM；双侧胸膜肥厚。主动脉、冠状动脉走行区可见条片状致密影。主动脉弓管壁不规整、凸凹不平。左下肺见一与膈肌相连脂肪密度影，长径约3.32CM。贲门位于膈上。</t>
+    <t>1、右肺上叶尖段恶性肿瘤,伴纵隔淋巴结多发转移,较2012-05-17CT明显增大;2、支气管炎征象;右肺中叶钙化灶;3、主动脉及冠状动脉硬化;4、轻度食管裂孔疝;左下小膈疝不除外,较前相仿,请结合临床;5、双侧胸膜肥厚。所示支气管血管束增强、紊乱,右肺上叶尖段可见团块影,其内密度稍欠均匀,周边见分叶征及短小毛刺,较大层面大小约4.73CM×5.58CM,CT值约35-45HU;余右肺中叶可见结节状钙化灶;纵隔可见增大的淋巴结影,大者短径约1.87CM;双侧胸膜肥厚。主动脉、冠状动脉走行区可见条片状致密影。主动脉弓管壁不规整、凸凹不平。左下肺见一与膈肌相连脂肪密度影,长径约3.32CM。贲门位于膈上。</t>
   </si>
   <si>
     <t>右肺上叶尖段</t>
@@ -203,25 +203,25 @@
     <t>4.73CM×5.58CM</t>
   </si>
   <si>
-    <t>1.左肺上叶肺癌，左肺门、纵隔淋巴结多发转移，较2012-11-27CT未见显著变化；2.右肺上叶小结节，相仿；3.双肺纵隔旁放射性肺炎，相仿；4.双侧胸膜略厚，心包增厚。左肺上叶近纵隔旁见团片状软组织影，最大截面大小约为6.96CM×2.39CM，CT值约36HU；右肺上叶后段可见一结节，径约0.45CM；左肺下叶背段见片状高密度影，内见支气管充气征。双肺纵隔旁可见多发条片状高密度影。腔静脉间隙、主动脉弓旁、气管隆突上纵隔及左肺门多发结节状软组织影，密度欠均匀，见小斑片状高密度影，部分融合。双侧胸膜略增厚。心影不大，大血管壁可见钙化影，心包增厚。</t>
+    <t>1.左肺上叶肺癌,左肺门、纵隔淋巴结多发转移,较2012-11-27CT未见显著变化;2.右肺上叶小结节,相仿;3.双肺纵隔旁放射性肺炎,相仿;4.双侧胸膜略厚,心包增厚。左肺上叶近纵隔旁见团片状软组织影,最大截面大小约为6.96CM×2.39CM,CT值约36HU;右肺上叶后段可见一结节,径约0.45CM;左肺下叶背段见片状高密度影,内见支气管充气征。双肺纵隔旁可见多发条片状高密度影。腔静脉间隙、主动脉弓旁、气管隆突上纵隔及左肺门多发结节状软组织影,密度欠均匀,见小斑片状高密度影,部分融合。双侧胸膜略增厚。心影不大,大血管壁可见钙化影,心包增厚。</t>
   </si>
   <si>
     <t>6.96CM×2.39CM</t>
   </si>
   <si>
-    <t>1.右肺下叶结节，与2016-1-28片比略大，考虑肺癌可能；2.左颈部、左侧锁骨上下区、纵隔、左侧腋窝多发肿大淋巴结，较前左腋窝淋巴结增多，首先考虑转移瘤，请随诊。两肺支气管血管束清晰。右肺下叶内基底段见不规则分叶状结节影，最大层面约2.83CM×1.47CM，CT值约25HU，边界清晰，未见明确毛刺及胸膜凹陷，增强扫描结节明显强化，三期CT值分别为58、60、85HU。两肺门区未见异常。左颈部、左侧锁骨上下区、纵隔、左侧腋窝见多发肿大淋巴结，最大位于隆突下，直径约3.26CM×4.77CM，增强扫描呈多发环形强化。两胸腔无积液征象。</t>
+    <t>1.右肺下叶结节,与2016-1-28片比略大,考虑肺癌可能;2.左颈部、左侧锁骨上下区、纵隔、左侧腋窝多发肿大淋巴结,较前左腋窝淋巴结增多,首先考虑转移瘤,请随诊。两肺支气管血管束清晰。右肺下叶内基底段见不规则分叶状结节影,最大层面约2.83CM×1.47CM,CT值约25HU,边界清晰,未见明确毛刺及胸膜凹陷,增强扫描结节明显强化,三期CT值分别为58、60、85HU。两肺门区未见异常。左颈部、左侧锁骨上下区、纵隔、左侧腋窝见多发肿大淋巴结,最大位于隆突下,直径约3.26CM×4.77CM,增强扫描呈多发环形强化。两胸腔无积液征象。</t>
   </si>
   <si>
     <t>2.83CM×1.47CM</t>
   </si>
   <si>
-    <t>左肺上叶中央型肺癌，阻塞左上肺动脉，纵隔及左肺门淋巴结转移。左上肺门处可见肿块影，分叶状，大小为5.4CM×5.3CM，形状不规则，边缘清，与肺动脉分界不清，CT值为42HU，增强扫描三期CT值分别为49、47、54HU，均匀轻度强化，包绕左肺动脉，左肺上动脉未见显示，纵隔及左肺门可见多发肿大淋巴结，大者短径为2.0CM。左侧胸膜牵拉凹陷。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。</t>
+    <t>左肺上叶中央型肺癌,阻塞左上肺动脉,纵隔及左肺门淋巴结转移。左上肺门处可见肿块影,分叶状,大小为5.4CM×5.3CM,形状不规则,边缘清,与肺动脉分界不清,CT值为42HU,增强扫描三期CT值分别为49、47、54HU,均匀轻度强化,包绕左肺动脉,左肺上动脉未见显示,纵隔及左肺门可见多发肿大淋巴结,大者短径为2.0CM。左侧胸膜牵拉凹陷。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。</t>
   </si>
   <si>
     <t>5.4CM×5.3CM</t>
   </si>
   <si>
-    <t>左肺下叶背段可见肿块影，边界模糊，径约9.31CM×6.47CM，平扫CT值约19-37HU，增强实性部分轻度强化，囊性低密度部分不强化，CT值约为14-54HU，22-66HU，16-44HU；左肺下叶部分支气管截断，左侧肺门可见增大淋巴结，左下肺动脉受侵，侵及胸膜；双肺下叶胸膜下多发类圆形小结节影，大者径约1.37CM×1.59CM；双肺小叶间隔增厚，近胸膜处多发囊状无肺纹理透亮区，纵膈内可见增大淋巴结，大者径约1.62CM×1.08CM。心脏大血管未见异常。与2013-10-12前片对比：1.左肺下叶中央型肺癌，左下肺动静脉受侵可能，纵隔及左肺门淋巴结转移，较前略大；2.双肺下叶多发类圆形小结节，考虑转移瘤，较前相仿；3.双肺弥漫性间质纤维化。</t>
+    <t>左肺下叶背段可见肿块影,边界模糊,径约9.31CM×6.47CM,平扫CT值约19-37HU,增强实性部分轻度强化,囊性低密度部分不强化,CT值约为14-54HU,22-66HU,16-44HU;左肺下叶部分支气管截断,左侧肺门可见增大淋巴结,左下肺动脉受侵,侵及胸膜;双肺下叶胸膜下多发类圆形小结节影,大者径约1.37CM×1.59CM;双肺小叶间隔增厚,近胸膜处多发囊状无肺纹理透亮区,纵膈内可见增大淋巴结,大者径约1.62CM×1.08CM。心脏大血管未见异常。与2013-10-12前片对比:1.左肺下叶中央型肺癌,左下肺动静脉受侵可能,纵隔及左肺门淋巴结转移,较前略大;2.双肺下叶多发类圆形小结节,考虑转移瘤,较前相仿;3.双肺弥漫性间质纤维化。</t>
   </si>
   <si>
     <t>左肺下叶背段</t>
@@ -233,13 +233,13 @@
     <t>双肺下叶,左肺门淋巴结</t>
   </si>
   <si>
-    <t>1.右下中心型肺癌，右肺多发转移瘤，侵及右侧胸膜，右侧多个肋骨成骨性转移，较2013.06.07CT片未见明显变化；2.右乳钙化结节，较前相仿；3.腹部病变，请结合腹部检查。4.左下肺胸膜下粟粒灶。5.右侧腋窝增大淋巴结。6.一上位胸椎致密影，请详查。双侧胸廓不对称，右侧胸廓塌陷，右肺体积减小，右肺下叶见团块状高密度影，形态不规则，边界不清楚，大小约3.97CM×4.64CM，CT值约29HU，右侧主支气管及下叶支气管受压变窄；右肺野及右胸膜可见高密度结节影，大小不一；右侧胸腔及右侧叶间裂见高密度影，部分包裹，右侧胸腔可见弧形液性密度影，右侧胸膜不均匀增厚。纵隔淋巴结增大，径长者约为1.28CM。心影大小正常范围。右侧第2、4、7、8肋骨骨质密度不均匀增高，形态不规整，其内可见骨质破坏。右侧乳腺内见一结节影，径约0.9CM，边界清晰，其内见点状钙化。</t>
+    <t>1.右下中心型肺癌,右肺多发转移瘤,侵及右侧胸膜,右侧多个肋骨成骨性转移,较2013.06.07CT片未见明显变化;2.右乳钙化结节,较前相仿;3.腹部病变,请结合腹部检查。4.左下肺胸膜下粟粒灶。5.右侧腋窝增大淋巴结。6.一上位胸椎致密影,请详查。双侧胸廓不对称,右侧胸廓塌陷,右肺体积减小,右肺下叶见团块状高密度影,形态不规则,边界不清楚,大小约3.97CM×4.64CM,CT值约29HU,右侧主支气管及下叶支气管受压变窄;右肺野及右胸膜可见高密度结节影,大小不一;右侧胸腔及右侧叶间裂见高密度影,部分包裹,右侧胸腔可见弧形液性密度影,右侧胸膜不均匀增厚。纵隔淋巴结增大,径长者约为1.28CM。心影大小正常范围。右侧第2、4、7、8肋骨骨质密度不均匀增高,形态不规整,其内可见骨质破坏。右侧乳腺内见一结节影,径约0.9CM,边界清晰,其内见点状钙化。</t>
   </si>
   <si>
     <t>右肺,右侧多个肋骨,右肺下叶</t>
   </si>
   <si>
-    <t>右肺下叶周围型肺癌，右肺多发转移瘤，纵隔多发淋巴结转移，右侧胸膜转移及右侧胸腔积液征象，对比2016.01.20CT相仿，请结合临床。右肺下叶见团块影，长径约为3.47CM，CT值约为36HU，增强后CT值约为67HU、60HU及61HU；右肺另见多发大小不等界清结节影。左肺小结节(30)，纵隔内见数个增大的淋巴结，大者短径约为1.9CM。心脏大血管形态自然。右侧胸腔内见弧形积液征象，增强后右胸膜见多个结节状强化。</t>
+    <t>右肺下叶周围型肺癌,右肺多发转移瘤,纵隔多发淋巴结转移,右侧胸膜转移及右侧胸腔积液征象,对比2016.01.20CT相仿,请结合临床。右肺下叶见团块影,长径约为3.47CM,CT值约为36HU,增强后CT值约为67HU、60HU及61HU;右肺另见多发大小不等界清结节影。左肺小结节(30),纵隔内见数个增大的淋巴结,大者短径约为1.9CM。心脏大血管形态自然。右侧胸腔内见弧形积液征象,增强后右胸膜见多个结节状强化。</t>
   </si>
   <si>
     <t>3.47CM</t>
@@ -248,19 +248,19 @@
     <t>右侧胸膜</t>
   </si>
   <si>
-    <t>1.右乳癌术后改变；右侧胸膜多发结节灶，考虑为胸膜转移，较前(2015-02-25)结节示减少；多发骨质破坏，考虑为骨转移，变化不著；左锁骨上淋巴结肿大，较前缩小2.右肺中叶结节灶，建议观察3.轻度脂肪肝右乳术后缺如，术区未见异常密度灶。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门及纵隔未见肿大淋巴结。左侧内乳区见小淋巴结，短径不足0.5CM。右侧胸膜(包括叶间胸膜、膈胸膜)示多发类结节灶，大者直径约0.5CM，边界较清。右肺中叶见一结节灶(图4-27)，直径约0.4CM，密度较低。余双肺野清晰，气管及各级支气管通畅，未见异常密度灶。双肺门及纵隔未见肿大淋巴结。双侧胸腔未见积液征象。扫描野内肝实质密度轻度减低。胸骨、T3、T7、T8、T12椎体呈不规则骨质改变。鼻咽、口咽、喉及下咽未见异常。左侧锁骨上区示多个淋巴结，大者短径约1.0CM。余双侧颈动脉鞘区见短径不足0.5CM小淋巴结。</t>
+    <t>1.右乳癌术后改变;右侧胸膜多发结节灶,考虑为胸膜转移,较前(2015-02-25)结节示减少;多发骨质破坏,考虑为骨转移,变化不著;左锁骨上淋巴结肿大,较前缩小2.右肺中叶结节灶,建议观察3.轻度脂肪肝右乳术后缺如,术区未见异常密度灶。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门及纵隔未见肿大淋巴结。左侧内乳区见小淋巴结,短径不足0.5CM。右侧胸膜(包括叶间胸膜、膈胸膜)示多发类结节灶,大者直径约0.5CM,边界较清。右肺中叶见一结节灶(图4-27),直径约0.4CM,密度较低。余双肺野清晰,气管及各级支气管通畅,未见异常密度灶。双肺门及纵隔未见肿大淋巴结。双侧胸腔未见积液征象。扫描野内肝实质密度轻度减低。胸骨、T3、T7、T8、T12椎体呈不规则骨质改变。鼻咽、口咽、喉及下咽未见异常。左侧锁骨上区示多个淋巴结,大者短径约1.0CM。余双侧颈动脉鞘区见短径不足0.5CM小淋巴结。</t>
   </si>
   <si>
     <t>右侧胸膜,骨</t>
   </si>
   <si>
-    <t>1.右肺下叶中央型肺癌可能性大；2.双肺小结节，不除外转移，随诊；3.纵隔小淋巴结，左肺上叶条索灶。右肺下叶(HR88)见肿块影，界清，大小3.8CM×3.9CM，可见浅分叶及短毛刺，平扫CT值53HU，增强三期：62HU、65HU、72HU。右肺上叶(HR84)、中叶(88、90)、左肺上叶舌段(102)见结节影，径约0.8CM。左肺上叶见条索影。两肺纹理清晰。两肺门区未见异常。所示气管支气管影通畅。纵隔内见多发小淋巴结，短径1.1CM。两胸腔未见积液征象。心脏大血管未见异常。</t>
+    <t>1.右肺下叶中央型肺癌可能性大;2.双肺小结节,不除外转移,随诊;3.纵隔小淋巴结,左肺上叶条索灶。右肺下叶(HR88)见肿块影,界清,大小3.8CM×3.9CM,可见浅分叶及短毛刺,平扫CT值53HU,增强三期:62HU、65HU、72HU。右肺上叶(HR84)、中叶(88、90)、左肺上叶舌段(102)见结节影,径约0.8CM。左肺上叶见条索影。两肺纹理清晰。两肺门区未见异常。所示气管支气管影通畅。纵隔内见多发小淋巴结,短径1.1CM。两胸腔未见积液征象。心脏大血管未见异常。</t>
   </si>
   <si>
     <t>3.8CM×3.9CM</t>
   </si>
   <si>
-    <t>双肺纹理增强、紊乱，局部支气管壁增厚，边缘模糊。双肺透过度增高，可见多发小圆形透亮影；右肺门可见团块状高密度影，大小约为4.49CM×3.09CM，平扫CT值约为37HU，增强扫描三期CT值约为64HU、66HU、61HU，周围可见淡片状稍高密度影，边缘模糊；右主支气管明显受压，管腔变窄；右肺下叶背段(39)可见结节状稍高密度影，其内可见血管进入；纵隔内可见多发淋巴结影，较大者位于气管前方，径约2.03CM，增强扫描呈均匀强化。所示胆囊体积明显增大，其内可见结节状致密影，径约1.29CM。所示脾脏前端可见小圆形等密度影，增强扫描呈均匀强化。1.右肺中央型肺癌，周围轻度癌性浸润；纵隔多发淋巴结转移；2.右肺下叶背段结节；3.双肺慢性支气管炎、肺气肿改变；4.胆囊结石；脾脏前端等密度影，首先考虑副脾可能，请结合腹部检查。</t>
+    <t>双肺纹理增强、紊乱,局部支气管壁增厚,边缘模糊。双肺透过度增高,可见多发小圆形透亮影;右肺门可见团块状高密度影,大小约为4.49CM×3.09CM,平扫CT值约为37HU,增强扫描三期CT值约为64HU、66HU、61HU,周围可见淡片状稍高密度影,边缘模糊;右主支气管明显受压,管腔变窄;右肺下叶背段(39)可见结节状稍高密度影,其内可见血管进入;纵隔内可见多发淋巴结影,较大者位于气管前方,径约2.03CM,增强扫描呈均匀强化。所示胆囊体积明显增大,其内可见结节状致密影,径约1.29CM。所示脾脏前端可见小圆形等密度影,增强扫描呈均匀强化。1.右肺中央型肺癌,周围轻度癌性浸润;纵隔多发淋巴结转移;2.右肺下叶背段结节;3.双肺慢性支气管炎、肺气肿改变;4.胆囊结石;脾脏前端等密度影,首先考虑副脾可能,请结合腹部检查。</t>
   </si>
   <si>
     <t>4.49CM×3.09CM</t>
@@ -269,13 +269,13 @@
     <t>纵隔多发淋巴结</t>
   </si>
   <si>
-    <t>右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见小淋巴结，大者直径约0.5CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质密度减低，内可见囊性密度灶。左肾上腺饱满。胆、胰、脾及扫描野内右肾未见异常。左肾示直径约3.0CM的囊性密度灶。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示成骨性及混合性骨质破坏。1.结合临床，右乳癌术后，纵隔、双肺门淋巴结较前(2017-1-09)片变化不著，左肺转移，显示不清；左肾上腺饱满，较前变化不著；骨转移，较前变化不著2.双肺炎症，基本变化不著3.心包少量积液，变化不著4.脂肪肝，肝囊肿；左肾囊肿</t>
+    <t>右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见小淋巴结,大者直径约0.5CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质密度减低,内可见囊性密度灶。左肾上腺饱满。胆、胰、脾及扫描野内右肾未见异常。左肾示直径约3.0CM的囊性密度灶。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示成骨性及混合性骨质破坏。1.结合临床,右乳癌术后,纵隔、双肺门淋巴结较前(2017-1-09)片变化不著,左肺转移,显示不清;左肾上腺饱满,较前变化不著;骨转移,较前变化不著2.双肺炎症,基本变化不著3.心包少量积液,变化不著4.脂肪肝,肝囊肿;左肾囊肿</t>
   </si>
   <si>
     <t>骨,左肺</t>
   </si>
   <si>
-    <t>1.右肺下叶肺癌，并双肺、右胸膜多发转移，与2015-08-13CT片对比，肿块略减小，双肺多发转移较前减少、减小；右侧胸腔积液，心包积液，较前相仿；2.甲状腺饱满。右肺下叶可见不规则稍低密度影，与右肺门分界不清，边缘毛糙，CT值约为37HU，其内密度不均，大小约为2.04CM×1.62CM，邻近肺组织可见模糊影，右肺下叶内基底段支气管截断，右肺胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影，边缘毛糙，大者径约为0.6CM；纵隔内未见增大淋巴结影。右侧胸腔、心包内见少许液性密度影。甲状腺明显肿大。</t>
+    <t>1.右肺下叶肺癌,并双肺、右胸膜多发转移,与2015-08-13CT片对比,肿块略减小,双肺多发转移较前减少、减小;右侧胸腔积液,心包积液,较前相仿;2.甲状腺饱满。右肺下叶可见不规则稍低密度影,与右肺门分界不清,边缘毛糙,CT值约为37HU,其内密度不均,大小约为2.04CM×1.62CM,邻近肺组织可见模糊影,右肺下叶内基底段支气管截断,右肺胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影,边缘毛糙,大者径约为0.6CM;纵隔内未见增大淋巴结影。右侧胸腔、心包内见少许液性密度影。甲状腺明显肿大。</t>
   </si>
   <si>
     <t>2.04CM×1.62CM</t>
@@ -284,7 +284,7 @@
     <t>双肺,右胸膜</t>
   </si>
   <si>
-    <t>左肺上叶前段可见磨玻璃密度影，最大截面大小约1.13CM×1.0CM。右肺见粟粒影及结节影。右肺可见索条影。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心影增大，大血管壁可见钙化影。所示左侧乳腺可见团块影，最大截面大小约9.3CM×6.12CM，其内密度欠均，邻近左乳皮肤增厚。双侧腋窝淋巴结增大，以左侧为著，较大者径约2.06CM。对比2013-11-21CT：1.左乳腺癌；双侧腋窝淋巴结转移，较前病变范围增大；2.左肺上叶磨玻璃密度影，较前相仿；3.右肺粟粒灶、结节影，较前相仿；请结合临床随诊。</t>
+    <t>左肺上叶前段可见磨玻璃密度影,最大截面大小约1.13CM×1.0CM。右肺见粟粒影及结节影。右肺可见索条影。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心影增大,大血管壁可见钙化影。所示左侧乳腺可见团块影,最大截面大小约9.3CM×6.12CM,其内密度欠均,邻近左乳皮肤增厚。双侧腋窝淋巴结增大,以左侧为著,较大者径约2.06CM。对比2013-11-21CT:1.左乳腺癌;双侧腋窝淋巴结转移,较前病变范围增大;2.左肺上叶磨玻璃密度影,较前相仿;3.右肺粟粒灶、结节影,较前相仿;请结合临床随诊。</t>
   </si>
   <si>
     <t>左乳腺</t>
@@ -293,7 +293,7 @@
     <t>9.3CM×6.12CM</t>
   </si>
   <si>
-    <t>左肺上叶舌段及下叶基底段可见不规则团块影，大者约1.73CM×2.53CM，CT值约35HU，周围可见血管集束征及毛刺征。双肺可见多发结节影，大者径约0.63CM。两肺支气管血管束清晰。两肺门稍饱满。所示气管支气管影通畅。两胸腔未见积液征象。冠脉可见致密影。1.左肺不规则团块影，考虑周围型肺癌；2.双肺多发结节影，转移不除外，请结合临床。</t>
+    <t>左肺上叶舌段及下叶基底段可见不规则团块影,大者约1.73CM×2.53CM,CT值约35HU,周围可见血管集束征及毛刺征。双肺可见多发结节影,大者径约0.63CM。两肺支气管血管束清晰。两肺门稍饱满。所示气管支气管影通畅。两胸腔未见积液征象。冠脉可见致密影。1.左肺不规则团块影,考虑周围型肺癌;2.双肺多发结节影,转移不除外,请结合临床。</t>
   </si>
   <si>
     <t>左肺上叶舌段及下叶基底段</t>
@@ -305,13 +305,13 @@
     <t>双肺多发结节</t>
   </si>
   <si>
-    <t>双肺纹理清晰。右肺中叶可见团块影，边界较清晰，大小约为3.77CM×3.93CM，平扫CT值为27HU、增强扫描三期CT值为64HU、75HU、76HU，双肺可见多发结节影，较大者径约0.48CM；所示气管支气管影正常。右肺门增大，该处可见多个小淋巴结，纵隔内见增大淋巴结影，径约1.03CM。两胸腔无积液征象。心脏大血管未见异常。甲状腺形态正常，颈部各血管走行正常，颈部间隙未见肿大淋巴结，颈部各肌肉软组织未见异常。1.右肺中叶周围型肺癌，与2012-10-23CT片相比略缩小；2.双肺多发转移瘤，较前未见明显变化；3.右侧肺门增大，纵隔淋巴结增大，与原片相比未见明显进展。4.前上纵隔囊性灶，囊肿可能。</t>
+    <t>双肺纹理清晰。右肺中叶可见团块影,边界较清晰,大小约为3.77CM×3.93CM,平扫CT值为27HU、增强扫描三期CT值为64HU、75HU、76HU,双肺可见多发结节影,较大者径约0.48CM;所示气管支气管影正常。右肺门增大,该处可见多个小淋巴结,纵隔内见增大淋巴结影,径约1.03CM。两胸腔无积液征象。心脏大血管未见异常。甲状腺形态正常,颈部各血管走行正常,颈部间隙未见肿大淋巴结,颈部各肌肉软组织未见异常。1.右肺中叶周围型肺癌,与2012-10-23CT片相比略缩小;2.双肺多发转移瘤,较前未见明显变化;3.右侧肺门增大,纵隔淋巴结增大,与原片相比未见明显进展。4.前上纵隔囊性灶,囊肿可能。</t>
   </si>
   <si>
     <t>3.77CM×3.93CM</t>
   </si>
   <si>
-    <t>1.左肺中心型肺癌；左胸膜及胸膜下肺内多发结节转移；纵膈及左腋窝肿大淋巴结转移；2.右肺支气管炎、肺气肿改变。左主支气管及其分支管壁明显增厚，管腔狭窄。左肺上叶尖后段至下叶背段见巨大空洞影，9.2CM×5.1CM×6.0CM，宽基底贴于胸膜，内壁不甚规整，CT值24HU-36HU，邻近胸膜腔少量积液，该病灶上方见少许纤维条索、肺大泡、小钙化点。左肺上叶尖后段亦见一1.7CM×2.2CM×1.5CM结节影，宽基底连于胸膜，CT值39HU。左肺下叶胸膜下见直径3.0CM-0.9CM多个结节，大者贴近胸膜，相应胸膜增厚。右肺上叶透过度不均，见多个大小不等泡状影。右肺上叶、中叶、下叶分别见少许小点片模糊影。纵隔内气管隆凸下见最大截面3.0CM×2.1CM肿大淋巴结，左下肺门见一直径1.8CM肿大淋巴结，纵隔内另见多个小淋巴结。左腋窝见直径2.8CM肿大淋巴结。心脏大血管未见明显异常。</t>
+    <t>1.左肺中心型肺癌;左胸膜及胸膜下肺内多发结节转移;纵膈及左腋窝肿大淋巴结转移;2.右肺支气管炎、肺气肿改变。左主支气管及其分支管壁明显增厚,管腔狭窄。左肺上叶尖后段至下叶背段见巨大空洞影,9.2CM×5.1CM×6.0CM,宽基底贴于胸膜,内壁不甚规整,CT值24HU-36HU,邻近胸膜腔少量积液,该病灶上方见少许纤维条索、肺大泡、小钙化点。左肺上叶尖后段亦见一1.7CM×2.2CM×1.5CM结节影,宽基底连于胸膜,CT值39HU。左肺下叶胸膜下见直径3.0CM-0.9CM多个结节,大者贴近胸膜,相应胸膜增厚。右肺上叶透过度不均,见多个大小不等泡状影。右肺上叶、中叶、下叶分别见少许小点片模糊影。纵隔内气管隆凸下见最大截面3.0CM×2.1CM肿大淋巴结,左下肺门见一直径1.8CM肿大淋巴结,纵隔内另见多个小淋巴结。左腋窝见直径2.8CM肿大淋巴结。心脏大血管未见明显异常。</t>
   </si>
   <si>
     <t>左肺</t>
@@ -320,7 +320,7 @@
     <t>左胸膜,胸膜下肺内</t>
   </si>
   <si>
-    <t>所示右侧乳腺组织缺如，右乳腺区及右肺上叶近纵隔区见类圆形及团片状肿块影，最大径约8.4CM，CT值37HU，边界不清，周边见片状模糊影。双肺内见多发大小不一类圆形高密度影，大者径约2.0CM。右肺中叶可见片状高密度影。大血管管壁未见钙化。右侧胸腔可见积液征象。胸骨骨质欠规整，内可见结节状高密度影。右内乳淋巴结、纵隔及颈部见多发肿大淋巴结，部分似见融合。所示层面肝脏见多发片状低密度影。对比2012-12-28胸部CT：1.右乳腺癌术后复发改变，右内乳淋巴结、纵隔及颈部多发淋巴结转移，双肺多发转移，胸骨转移，右侧胸壁软组织转移，较前片病变明显进展，右肺上叶近纵隔区转移灶较前明显变大，请结合临床；2.右肺中叶炎症，较前明显；3.右侧胸腔积液，较前新发；4.肝脏病变，结合腹部CT详查。</t>
+    <t>所示右侧乳腺组织缺如,右乳腺区及右肺上叶近纵隔区见类圆形及团片状肿块影,最大径约8.4CM,CT值37HU,边界不清,周边见片状模糊影。双肺内见多发大小不一类圆形高密度影,大者径约2.0CM。右肺中叶可见片状高密度影。大血管管壁未见钙化。右侧胸腔可见积液征象。胸骨骨质欠规整,内可见结节状高密度影。右内乳淋巴结、纵隔及颈部见多发肿大淋巴结,部分似见融合。所示层面肝脏见多发片状低密度影。对比2012-12-28胸部CT:1.右乳腺癌术后复发改变,右内乳淋巴结、纵隔及颈部多发淋巴结转移,双肺多发转移,胸骨转移,右侧胸壁软组织转移,较前片病变明显进展,右肺上叶近纵隔区转移灶较前明显变大,请结合临床;2.右肺中叶炎症,较前明显;3.右侧胸腔积液,较前新发;4.肝脏病变,结合腹部CT详查。</t>
   </si>
   <si>
     <t>右乳腺区</t>
@@ -329,7 +329,7 @@
     <t>右肺上叶近纵隔区,双肺,胸骨,右内乳淋巴结,右侧胸壁软组织</t>
   </si>
   <si>
-    <t>1.右乳癌并右侧腋窝淋巴结转移2.双肺类结节灶，考虑转移可能性大3.纵隔淋巴结肿大右乳内上象限可见较大不规则软组织密度肿块及小结节灶，大者截面大小约2.8CM×2.2CM，边缘较模糊，与周围腺体分界欠清，增强后呈较显著强化。右侧腋窝可见肿大淋巴结，大者短径约1.3CM。左乳及左侧腋窝未见明显肿大淋巴结。双侧肺野内可见散在小结节灶，边界较模糊，大者直径约0.3CM。纵隔内主动脉弓旁可见肿大淋巴结，大者短径约1.1CM。</t>
+    <t>1.右乳癌并右侧腋窝淋巴结转移2.双肺类结节灶,考虑转移可能性大3.纵隔淋巴结肿大右乳内上象限可见较大不规则软组织密度肿块及小结节灶,大者截面大小约2.8CM×2.2CM,边缘较模糊,与周围腺体分界欠清,增强后呈较显著强化。右侧腋窝可见肿大淋巴结,大者短径约1.3CM。左乳及左侧腋窝未见明显肿大淋巴结。双侧肺野内可见散在小结节灶,边界较模糊,大者直径约0.3CM。纵隔内主动脉弓旁可见肿大淋巴结,大者短径约1.1CM。</t>
   </si>
   <si>
     <t>2.8CM×2.2CM</t>
@@ -338,7 +338,7 @@
     <t>右侧腋窝淋巴结,双肺</t>
   </si>
   <si>
-    <t>左肺肋胸膜、膈胸膜、斜裂胸膜广泛明显增厚，最厚约1.5CM，CT值约30HU。两肺纹理增强，双肺野内见多发大小不等密度增高影，部分呈磨玻璃密度改变，大者约1.8CM×1.2CM；右肺上叶尖段见囊状透过度增高区。所示气管支气管影正常。纵隔内见多发小淋巴结影，大者短径0.8CM。两胸腔无积液征象。主动脉管壁见钙化影。胸3椎体见结节样致密影。1.左侧胸膜恶性肿瘤，对比2012.09.18CT，病变范围略小；双肺、胸3椎体转移，纵隔淋巴结稍大，较前相仿；2.右肺上叶肺大泡。</t>
+    <t>左肺肋胸膜、膈胸膜、斜裂胸膜广泛明显增厚,最厚约1.5CM,CT值约30HU。两肺纹理增强,双肺野内见多发大小不等密度增高影,部分呈磨玻璃密度改变,大者约1.8CM×1.2CM;右肺上叶尖段见囊状透过度增高区。所示气管支气管影正常。纵隔内见多发小淋巴结影,大者短径0.8CM。两胸腔无积液征象。主动脉管壁见钙化影。胸3椎体见结节样致密影。1.左侧胸膜恶性肿瘤,对比2012.09.18CT,病变范围略小;双肺、胸3椎体转移,纵隔淋巴结稍大,较前相仿;2.右肺上叶肺大泡。</t>
   </si>
   <si>
     <t>左侧胸膜</t>
@@ -347,13 +347,13 @@
     <t>双肺,胸3椎体</t>
   </si>
   <si>
-    <t>1.考虑右肺下叶周围型肺癌，纵隔淋巴结转移，双肺多个小结节影，请结合临床随诊及相关其它检查；2.支气管炎；3.右肺上叶索条影，左肺上叶小钙化灶；4.胸骨及部分胸椎密度不均匀。右肺下叶可见分叶状软组织密度肿块影，大小约为2.9CM×2.2CM，CT值约为54HU，病灶边缘见细小毛糙，其近端可见血管集束，远端可见胸膜凹陷，增强扫描肿块可见强化，三期CT值分别为85HU、64HU、49HU。双肺内可见多个小结节影。双肺纹理增多、紊乱，模糊不清。纵隔内见增大的淋巴结影，增强扫描可见明显不均匀强化；两胸腔无积液征象；心脏未见异常。胸骨及部分胸椎密度不均匀。</t>
+    <t>1.考虑右肺下叶周围型肺癌,纵隔淋巴结转移,双肺多个小结节影,请结合临床随诊及相关其它检查;2.支气管炎;3.右肺上叶索条影,左肺上叶小钙化灶;4.胸骨及部分胸椎密度不均匀。右肺下叶可见分叶状软组织密度肿块影,大小约为2.9CM×2.2CM,CT值约为54HU,病灶边缘见细小毛糙,其近端可见血管集束,远端可见胸膜凹陷,增强扫描肿块可见强化,三期CT值分别为85HU、64HU、49HU。双肺内可见多个小结节影。双肺纹理增多、紊乱,模糊不清。纵隔内见增大的淋巴结影,增强扫描可见明显不均匀强化;两胸腔无积液征象;心脏未见异常。胸骨及部分胸椎密度不均匀。</t>
   </si>
   <si>
     <t>2.9CM×2.2CM</t>
   </si>
   <si>
-    <t>右侧肾上腺区见团块影，边缘清晰，大小约7.3CM×6.4CM，CT值约为15-31HU，右肾受压。肝左内叶见一类圆形低密度影，径约2.6CM，边界略模糊，CT值25HU。右肾实质内见一类圆形低密度影，径约0.85CM，CT值15HU。胆囊底部见高密度影。脾不、胰腺大小形态及密度正常。腹膜后未见肿大淋巴结。食道下段管壁增厚，管腔变窄，最厚处约2.2CM，周围见增大淋巴结影，径约2.29CM。1、对比2014.05.05上腹CT片：食管下段癌伴周围淋巴结增大较前相仿，右肾上腺区肿块较前增大，右肾囊肿较前相仿；2、肝左内叶圆形低密度影，转移可能性大；3、胆囊底部改变，伪影可能大。</t>
+    <t>右侧肾上腺区见团块影,边缘清晰,大小约7.3CM×6.4CM,CT值约为15-31HU,右肾受压。肝左内叶见一类圆形低密度影,径约2.6CM,边界略模糊,CT值25HU。右肾实质内见一类圆形低密度影,径约0.85CM,CT值15HU。胆囊底部见高密度影。脾不、胰腺大小形态及密度正常。腹膜后未见肿大淋巴结。食道下段管壁增厚,管腔变窄,最厚处约2.2CM,周围见增大淋巴结影,径约2.29CM。1、对比2014.05.05上腹CT片:食管下段癌伴周围淋巴结增大较前相仿,右肾上腺区肿块较前增大,右肾囊肿较前相仿;2、肝左内叶圆形低密度影,转移可能性大;3、胆囊底部改变,伪影可能大。</t>
   </si>
   <si>
     <t>食管下段</t>
@@ -365,16 +365,16 @@
     <t>肝左内叶</t>
   </si>
   <si>
-    <t>1.考虑右肺下叶周围型肺癌可能，双肺多发转移，右胸膜转移，较2015-04-10CT未见明显变化；2.右侧胸腔积液；心包积液；3.甲状腺大；4.左侧第6前肋局部密度增高，较前相仿；请结合临床。右肺下叶可见团块影，与右肺门影分界不清，边界欠清，CT值约为30HU，其内密度不均，大小约为6.27CM×3.97CM，邻近肺组织可见模糊影，右肺下叶内基底段支气管不通。双肺可见多发的大小不等的小结节影，大者径长约2.0CM；右肺斜裂增厚、右肺中叶条片状高密度影。纵隔内可见多发肿大的淋巴结。右侧胸腔积液征象。心包积液。甲状腺明显肿大。右侧胸壁下可见结节影，径约0.6CM。左侧第6前肋局部密度增高。</t>
+    <t>1.考虑右肺下叶周围型肺癌可能,双肺多发转移,右胸膜转移,较2015-04-10CT未见明显变化;2.右侧胸腔积液;心包积液;3.甲状腺大;4.左侧第6前肋局部密度增高,较前相仿;请结合临床。右肺下叶可见团块影,与右肺门影分界不清,边界欠清,CT值约为30HU,其内密度不均,大小约为6.27CM×3.97CM,邻近肺组织可见模糊影,右肺下叶内基底段支气管不通。双肺可见多发的大小不等的小结节影,大者径长约2.0CM;右肺斜裂增厚、右肺中叶条片状高密度影。纵隔内可见多发肿大的淋巴结。右侧胸腔积液征象。心包积液。甲状腺明显肿大。右侧胸壁下可见结节影,径约0.6CM。左侧第6前肋局部密度增高。</t>
   </si>
   <si>
     <t>6.27CM×3.97CM</t>
   </si>
   <si>
-    <t>右肺下叶背段见类圆形肿块影，径约.56CM，边缘毛糙，可见血管进入，牵拉邻近胸膜，其内密度不均，平扫CT值约32HU，增强扫描可见轻度强化。右下肺散在斑片影。右肺门及纵隔内可见多发肿大淋巴结影，大者短径约1.95CM。两胸腔无积液征象。心脏大血管未见异常。右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移；右下肺散在炎症。</t>
-  </si>
-  <si>
-    <t>肝脏欠光滑，肝内外胆管未见扩张。肝右叶可见团块状异常密度影，边界清楚，大者约：6.45CM×6.48CM，CT值约：66-35HU，增强96、104、78HU；其旁另见低密度影，边界不清，大小约：3.6CM×3.45CM，CT值约33HU，增强三期CT值约：104、99、87HU；肝右叶及肝被膜下另见小结节状低密度影，增强动脉期明显强化，静脉期及延迟期显示欠佳；肝内多发点状不强化区；腹膜后多发稍大淋巴结；胆囊壁不厚。脾脏增大；胰腺异常密度影。肝周少量积液。1.肝右叶多发病变，考虑肝癌可能，部分病变内合并出血；肝右叶及被膜下小结节灶，考虑转移瘤可能；腹膜后稍大淋巴结，请结合临床；2.肝内多发小囊肿；3.肝周少量积液。</t>
+    <t>右肺下叶背段见类圆形肿块影,径约.56CM,边缘毛糙,可见血管进入,牵拉邻近胸膜,其内密度不均,平扫CT值约32HU,增强扫描可见轻度强化。右下肺散在斑片影。右肺门及纵隔内可见多发肿大淋巴结影,大者短径约1.95CM。两胸腔无积液征象。心脏大血管未见异常。右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移;右下肺散在炎症。</t>
+  </si>
+  <si>
+    <t>肝脏欠光滑,肝内外胆管未见扩张。肝右叶可见团块状异常密度影,边界清楚,大者约:6.45CM×6.48CM,CT值约:66-35HU,增强96、104、78HU;其旁另见低密度影,边界不清,大小约:3.6CM×3.45CM,CT值约33HU,增强三期CT值约:104、99、87HU;肝右叶及肝被膜下另见小结节状低密度影,增强动脉期明显强化,静脉期及延迟期显示欠佳;肝内多发点状不强化区;腹膜后多发稍大淋巴结;胆囊壁不厚。脾脏增大;胰腺异常密度影。肝周少量积液。1.肝右叶多发病变,考虑肝癌可能,部分病变内合并出血;肝右叶及被膜下小结节灶,考虑转移瘤可能;腹膜后稍大淋巴结,请结合临床;2.肝内多发小囊肿;3.肝周少量积液。</t>
   </si>
   <si>
     <t>肝右叶</t>
@@ -383,7 +383,7 @@
     <t>6.45CM×6.48CM</t>
   </si>
   <si>
-    <t>左乳术后，术区结构紊乱，肌肉，密度欠均质，术区未见异常强化灶。左侧腋窝结构紊乱。右乳未见异常。双侧内乳区、双侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰，未见结节及异常强化灶。肝脏密度减低；肝右后叶内见片状密度增高影，其强化方式与同层腹主动脉相似。胆囊充盈可，其内见点状致密影。胰、脾、右侧肾上腺及扫描范围内双肾未见异常。左侧肾上腺见软组织结节灶，短径约1.6CM，增强后轻度强化。骨窗示胸骨及T12胸椎示不规则骨质改变。1.结合临床，左乳癌术后；骨转移较前2015-1-15变化不著2.肝右后叶片状密度增高影，考虑动静脉瘘形成3.胆囊结石4.左侧肾上腺结节灶，较前略增大5.脂肪肝</t>
+    <t>左乳术后,术区结构紊乱,肌肉,密度欠均质,术区未见异常强化灶。左侧腋窝结构紊乱。右乳未见异常。双侧内乳区、双侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰,未见结节及异常强化灶。肝脏密度减低;肝右后叶内见片状密度增高影,其强化方式与同层腹主动脉相似。胆囊充盈可,其内见点状致密影。胰、脾、右侧肾上腺及扫描范围内双肾未见异常。左侧肾上腺见软组织结节灶,短径约1.6CM,增强后轻度强化。骨窗示胸骨及T12胸椎示不规则骨质改变。1.结合临床,左乳癌术后;骨转移较前2015-1-15变化不著2.肝右后叶片状密度增高影,考虑动静脉瘘形成3.胆囊结石4.左侧肾上腺结节灶,较前略增大5.脂肪肝</t>
   </si>
   <si>
     <t>左乳</t>
@@ -392,13 +392,13 @@
     <t>骨</t>
   </si>
   <si>
-    <t>左乳外侧局部结构紊乱，局部可见小斑片状强化影。左肺下叶见索条影。左肺下叶胸膜下见一直径不足0.5CM小类结节灶。双侧腋窝、胸肌间及左锁上见短径不足1.0CM小淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。左侧肾上腺饱满，肝、胆、胰、脾、右侧肾上腺及双肾未见异常。腹腔及腹膜后、膈上见大者短径约0.5CM小淋巴结。宫颈体积稍大，强化不均。宫体体积不规则增大，见多发软组织密度灶，增强后呈不均匀强化。双侧附件饱满。膀胱充盈良好，壁未见增厚。盆腔内髂血管旁、骶前见短径不足0.5CM小淋巴结。多发椎骨及胸骨密度不均，部分周围示软组织密度影，以胸椎周围为著，与邻近结构分界不清。双侧坐骨局限性骨质密度减低。右侧部分肋骨骨质中断。1.结合临床，左乳癌术后，术区小片影，较前(2016-2-14)范围略缩小；宫颈转移治疗后，变化不著；骨转移，较前胸椎周围软组织密度增大，余基本变化不著2.左肺下叶类结节灶，变化不著；左肺纤维灶3.考虑子宫肌瘤，变化不著4.双侧附件略饱满，变化不著5.双侧腋窝、左锁上、腹腔、腹膜后及盆腔小淋巴结，变化不著6.双侧坐骨局限性骨质密度减低，右侧部分肋骨骨折，均变化不著</t>
+    <t>左乳外侧局部结构紊乱,局部可见小斑片状强化影。左肺下叶见索条影。左肺下叶胸膜下见一直径不足0.5CM小类结节灶。双侧腋窝、胸肌间及左锁上见短径不足1.0CM小淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。左侧肾上腺饱满,肝、胆、胰、脾、右侧肾上腺及双肾未见异常。腹腔及腹膜后、膈上见大者短径约0.5CM小淋巴结。宫颈体积稍大,强化不均。宫体体积不规则增大,见多发软组织密度灶,增强后呈不均匀强化。双侧附件饱满。膀胱充盈良好,壁未见增厚。盆腔内髂血管旁、骶前见短径不足0.5CM小淋巴结。多发椎骨及胸骨密度不均,部分周围示软组织密度影,以胸椎周围为著,与邻近结构分界不清。双侧坐骨局限性骨质密度减低。右侧部分肋骨骨质中断。1.结合临床,左乳癌术后,术区小片影,较前(2016-2-14)范围略缩小;宫颈转移治疗后,变化不著;骨转移,较前胸椎周围软组织密度增大,余基本变化不著2.左肺下叶类结节灶,变化不著;左肺纤维灶3.考虑子宫肌瘤,变化不著4.双侧附件略饱满,变化不著5.双侧腋窝、左锁上、腹腔、腹膜后及盆腔小淋巴结,变化不著6.双侧坐骨局限性骨质密度减低,右侧部分肋骨骨折,均变化不著</t>
   </si>
   <si>
     <t>宫颈,骨</t>
   </si>
   <si>
-    <t>右肺上叶尖段支气管闭塞，前段及后段支气管管壁略厚，管腔狭窄，可见团块状稍高密度影，大小约5.0CM×4.7CM，可见浅分叶，边缘可见细短毛刺，CT值约42HU，右上支气管受压变窄，增强后扫描呈不均匀强化；上腔静脉管腔狭窄，其内可疑充盈缺损；右肺中叶、下叶、左舌段可见索条灶，左肺下叶见片状高密度影；左肺下叶近斜裂可见小结节影，径约0.4CM。双肺见多发局限性透亮影。纵隔内可见增大的淋巴结，部分融合，短径约1.8CM；右侧锁骨上淋巴结增大，大者短径约0.9CM。两胸腔无积液征象，右侧胸膜局限性增厚。心包内可见条形液体密度影，大血管未见异常。1.右肺上叶团块影，考虑中央型肺癌，较2016.9.27CT明显减小，纵隔、右侧锁骨上淋巴结转移，较前稍减小；上腔静脉管腔狭窄，较前相仿；请结合临床；2.肺气肿；双肺索条灶；左肺下叶少许炎性改变，较前相仿；3.心包积液，较前减少；4.左侧斜裂小结节，较前相仿。</t>
+    <t>右肺上叶尖段支气管闭塞,前段及后段支气管管壁略厚,管腔狭窄,可见团块状稍高密度影,大小约5.0CM×4.7CM,可见浅分叶,边缘可见细短毛刺,CT值约42HU,右上支气管受压变窄,增强后扫描呈不均匀强化;上腔静脉管腔狭窄,其内可疑充盈缺损;右肺中叶、下叶、左舌段可见索条灶,左肺下叶见片状高密度影;左肺下叶近斜裂可见小结节影,径约0.4CM。双肺见多发局限性透亮影。纵隔内可见增大的淋巴结,部分融合,短径约1.8CM;右侧锁骨上淋巴结增大,大者短径约0.9CM。两胸腔无积液征象,右侧胸膜局限性增厚。心包内可见条形液体密度影,大血管未见异常。1.右肺上叶团块影,考虑中央型肺癌,较2016.9.27CT明显减小,纵隔、右侧锁骨上淋巴结转移,较前稍减小;上腔静脉管腔狭窄,较前相仿;请结合临床;2.肺气肿;双肺索条灶;左肺下叶少许炎性改变,较前相仿;3.心包积液,较前减少;4.左侧斜裂小结节,较前相仿。</t>
   </si>
   <si>
     <t>5.0CM×4.7CM</t>
@@ -407,7 +407,7 @@
     <t>右侧锁骨上淋巴结</t>
   </si>
   <si>
-    <t>右肺门区见不规则团块影，边界欠清，大小约4.09CM×3.75CM。CT值约46HU，右肺中叶内侧段支气管截断，右肺中叶内侧段肺不张。双肺见多发大小不等结节影，较大者长径约1.4CM。纵隔内见多发稍大淋巴结。心影不大，心包增厚。片示甲状腺双叶体积增大，胸骨后可见甲状腺影，其内密度不均。双侧部分肋骨、部分胸椎椎体内见结节样高密度影，部分骨质破坏。1.右肺中央型肺癌并右肺中叶内侧段肺不张，双肺所发小结节，考虑转移，左侧胸腔积液，请结合临床；2.纵隔内多发稍大淋巴结，转移可能；3.双侧部分肋骨、部分胸椎椎体改变，考虑转移；4.甲状腺双叶改变，请详查。</t>
+    <t>右肺门区见不规则团块影,边界欠清,大小约4.09CM×3.75CM。CT值约46HU,右肺中叶内侧段支气管截断,右肺中叶内侧段肺不张。双肺见多发大小不等结节影,较大者长径约1.4CM。纵隔内见多发稍大淋巴结。心影不大,心包增厚。片示甲状腺双叶体积增大,胸骨后可见甲状腺影,其内密度不均。双侧部分肋骨、部分胸椎椎体内见结节样高密度影,部分骨质破坏。1.右肺中央型肺癌并右肺中叶内侧段肺不张,双肺所发小结节,考虑转移,左侧胸腔积液,请结合临床;2.纵隔内多发稍大淋巴结,转移可能;3.双侧部分肋骨、部分胸椎椎体改变,考虑转移;4.甲状腺双叶改变,请详查。</t>
   </si>
   <si>
     <t>4.09CM×3.75CM</t>
@@ -416,13 +416,13 @@
     <t>双肺,肋骨,胸椎椎体</t>
   </si>
   <si>
-    <t>右肺见散在条索影，边界稍模糊。左肺下叶后基底段可见小结节状致密影。左肺门形态饱满，可见一软组织肿块影，并延续到左肺下叶，其内密度稍欠均匀，平扫CT值约为0-31HU，增强强化不均，平均三期CT值分别约为56HU、55HU、51HU，左肺上叶支气管稍变窄，气管内壁稍欠光整，左肺下叶外侧基底段及背段支气管闭塞，部分支气管狭窄，病变周围可见片絮状模糊密度增高影及多发条索影。左肺下叶前基底段(HR155)可见小结节状高密度影，径约为0.6CM，界清。纵隔内可见多发肿大淋巴结，较大者短径约为2.0CM。两侧胸腔无积液征象。部分大血管管壁及冠脉走行区可见致密影。1.左肺肺门及左肺下叶肿块，考虑肺癌，伴纵隔淋巴结转移，周围阻塞性肺炎；2.左肺下叶前基底段小结节，随诊；3.右肺散在条索灶，左肺下叶后基底段钙化灶。</t>
+    <t>右肺见散在条索影,边界稍模糊。左肺下叶后基底段可见小结节状致密影。左肺门形态饱满,可见一软组织肿块影,并延续到左肺下叶,其内密度稍欠均匀,平扫CT值约为0-31HU,增强强化不均,平均三期CT值分别约为56HU、55HU、51HU,左肺上叶支气管稍变窄,气管内壁稍欠光整,左肺下叶外侧基底段及背段支气管闭塞,部分支气管狭窄,病变周围可见片絮状模糊密度增高影及多发条索影。左肺下叶前基底段(HR155)可见小结节状高密度影,径约为0.6CM,界清。纵隔内可见多发肿大淋巴结,较大者短径约为2.0CM。两侧胸腔无积液征象。部分大血管管壁及冠脉走行区可见致密影。1.左肺肺门及左肺下叶肿块,考虑肺癌,伴纵隔淋巴结转移,周围阻塞性肺炎;2.左肺下叶前基底段小结节,随诊;3.右肺散在条索灶,左肺下叶后基底段钙化灶。</t>
   </si>
   <si>
     <t>左肺下叶,左肺肺门</t>
   </si>
   <si>
-    <t>两肺野未见异常密度影。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。左侧乳房内可见软组织团块，直径约2.7CM，CT值约41HU，胸大肌完好；增强扫描，CT值约54、81、88HU。左侧腋窝淋巴结明显增大，最大直径约2.4CM，增强扫描不均匀强化，可见内部不规则略低密度区。1、左侧乳腺癌征象，并左侧腋窝淋巴结转移；2、心肺CT平扫未见异常。</t>
+    <t>两肺野未见异常密度影。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。左侧乳房内可见软组织团块,直径约2.7CM,CT值约41HU,胸大肌完好;增强扫描,CT值约54、81、88HU。左侧腋窝淋巴结明显增大,最大直径约2.4CM,增强扫描不均匀强化,可见内部不规则略低密度区。1、左侧乳腺癌征象,并左侧腋窝淋巴结转移;2、心肺CT平扫未见异常。</t>
   </si>
   <si>
     <t>左侧乳腺</t>
@@ -434,13 +434,13 @@
     <t>左侧腋窝淋巴结</t>
   </si>
   <si>
-    <t>1.左肺上叶中心型肺癌并阻塞性肺炎与阻塞性肺不张，主动脉弓旁、纵隔及左肺门淋巴结转移，较前2011-11-16未见明显变化；2.右肺小结节，较前片2011-11-16未见明显变化；3.左侧肾上腺增粗，较前片未见明显变化。左肺上叶见团片状高密度影，最大截面大小约为5.3CM×2.3CM，CT值约50HU，增强后明显不均匀强化，三期CT值约145HU、83HU、79HU，病灶周围可见小片状模糊高密度影。右肺上叶近水平裂见一径约0.5CM结节。左主动脉弓旁、纵隔及左肺门淋巴结增大，大者短径约3.9CM，增强后环形强化。两胸腔无积液征象。心脏大血管形态未见异常。左侧肾上腺内支稍粗。</t>
+    <t>1.左肺上叶中心型肺癌并阻塞性肺炎与阻塞性肺不张,主动脉弓旁、纵隔及左肺门淋巴结转移,较前2011-11-16未见明显变化;2.右肺小结节,较前片2011-11-16未见明显变化;3.左侧肾上腺增粗,较前片未见明显变化。左肺上叶见团片状高密度影,最大截面大小约为5.3CM×2.3CM,CT值约50HU,增强后明显不均匀强化,三期CT值约145HU、83HU、79HU,病灶周围可见小片状模糊高密度影。右肺上叶近水平裂见一径约0.5CM结节。左主动脉弓旁、纵隔及左肺门淋巴结增大,大者短径约3.9CM,增强后环形强化。两胸腔无积液征象。心脏大血管形态未见异常。左侧肾上腺内支稍粗。</t>
   </si>
   <si>
     <t>5.3CM×2.3CM</t>
   </si>
   <si>
-    <t>1.左侧中央型肺癌伴纵隔多发淋巴结转移，左肺上叶部分不张；2.胸椎多发致密度影，考虑转移，请结合临床；3.左侧腋窝、颈部淋巴结转移可能大，双侧甲状腺占位，请结合临床；4.双侧胸腔、左侧叶间裂、心包积液，较2011-06-15CT所示，左侧胸腔积液减轻；5.所示肝脏多发转移可能性大。左侧肺门区可见团状软组织密度影，其内可见多发小片状高密度影及支气管气像，大小约5.79CM×6.77CM，CT值约32HU，左肺上叶部分肺组织实变，与肺门团块影分界不清。左肺、右肺上叶可见多发片状模糊阴影。纵隔、左侧腋窝及颈部可见多发淋巴结增大，大者短径约2.04CM。双侧胸腔、心包可见水样密度影条，以左侧为著，部分形成包裹，左侧叶间裂可见积液。部分胸椎椎体可见片状致密影。所示层面肝脏多个类圆形低密度影，部分边界不清。甲状腺左右叶可见多发稍低密度影。</t>
+    <t>1.左侧中央型肺癌伴纵隔多发淋巴结转移,左肺上叶部分不张;2.胸椎多发致密度影,考虑转移,请结合临床;3.左侧腋窝、颈部淋巴结转移可能大,双侧甲状腺占位,请结合临床;4.双侧胸腔、左侧叶间裂、心包积液,较2011-06-15CT所示,左侧胸腔积液减轻;5.所示肝脏多发转移可能性大。左侧肺门区可见团状软组织密度影,其内可见多发小片状高密度影及支气管气像,大小约5.79CM×6.77CM,CT值约32HU,左肺上叶部分肺组织实变,与肺门团块影分界不清。左肺、右肺上叶可见多发片状模糊阴影。纵隔、左侧腋窝及颈部可见多发淋巴结增大,大者短径约2.04CM。双侧胸腔、心包可见水样密度影条,以左侧为著,部分形成包裹,左侧叶间裂可见积液。部分胸椎椎体可见片状致密影。所示层面肝脏多个类圆形低密度影,部分边界不清。甲状腺左右叶可见多发稍低密度影。</t>
   </si>
   <si>
     <t>左侧肺门</t>
@@ -452,19 +452,19 @@
     <t>胸椎,颈部淋巴结,肝脏</t>
   </si>
   <si>
-    <t>左上肺门可见肿块影，形状不规则，分叶状，边界不清，边缘可见细小毛刺，病灶最大截面大小为5.5CM×7.3CM，CT值为36HU，周围可见多发斑片影，左肺上叶支气管截断，纵隔及左侧肺门可见多发肿大淋巴结，部分相互融合，大者径约2.3CM×3.7CM；纵隔内可见稍大淋巴结影，较大者径约2.3CM；左肺动脉形态不规整。双肺支气管血管束增强、紊乱，双肺可见多发圆泡状薄壁透亮影；双肺下叶小叶间隔增厚，呈网格状改变；双侧胸腔见液性密度影；双侧胸膜增厚。心影增大，主动脉及冠状动脉可见钙化。左侧肋骨多发骨质不规整。所示胆囊内可见多发结节状致密影，左肾上极可见类圆形低密度影。1.左肺上叶中央型肺癌并阻塞性炎症，左肺门及纵隔多发淋巴结转移，左肺动脉受侵，与2015-01-08相比，较前进展，请结合临床；2.支气管炎、肺大泡；双肺下叶间质改变；3.双侧胸膜增厚；双侧胸腔积液，较前进展；4.左侧多发肋骨形态不整，较前相仿；5.所示腹部改变，请结合相关检查。</t>
+    <t>左上肺门可见肿块影,形状不规则,分叶状,边界不清,边缘可见细小毛刺,病灶最大截面大小为5.5CM×7.3CM,CT值为36HU,周围可见多发斑片影,左肺上叶支气管截断,纵隔及左侧肺门可见多发肿大淋巴结,部分相互融合,大者径约2.3CM×3.7CM;纵隔内可见稍大淋巴结影,较大者径约2.3CM;左肺动脉形态不规整。双肺支气管血管束增强、紊乱,双肺可见多发圆泡状薄壁透亮影;双肺下叶小叶间隔增厚,呈网格状改变;双侧胸腔见液性密度影;双侧胸膜增厚。心影增大,主动脉及冠状动脉可见钙化。左侧肋骨多发骨质不规整。所示胆囊内可见多发结节状致密影,左肾上极可见类圆形低密度影。1.左肺上叶中央型肺癌并阻塞性炎症,左肺门及纵隔多发淋巴结转移,左肺动脉受侵,与2015-01-08相比,较前进展,请结合临床;2.支气管炎、肺大泡;双肺下叶间质改变;3.双侧胸膜增厚;双侧胸腔积液,较前进展;4.左侧多发肋骨形态不整,较前相仿;5.所示腹部改变,请结合相关检查。</t>
   </si>
   <si>
     <t>5.5CM×7.3CM</t>
   </si>
   <si>
-    <t>右乳术后，术区壁未见增厚及异常强化。右侧腋窝结构紊乱，未见占位性病变。左乳及腋窝内未见异常密度灶。双侧内乳区、双侧肺门及纵隔未见增大淋巴结。双肺野内可见数个小结节灶，大者直径约0.6CM，边界欠清。肝脏密度普遍性减低，实质内见数个结节灶，大者直径约3.5CM，边缘有强化。胆囊、胰腺、脾、左肾、肾上腺未见异常，右肾内示一囊性低密度灶，边界清。腹膜后胰头后方、门腔间隙、腹主动脉旁可见数个结节灶，大者短径约1.0CM。各咽壁不厚，双侧颈部未见肿大淋巴结影。腮腺及双侧甲状腺未见异常。子宫未见显示，阴道残端未见增厚及异常强化。膀胱充盈可，壁不厚。盆腔内未见积液及肿大淋巴结。双侧腹股沟区示小淋巴结，大者短径约0.6CM。骨窗显示T1椎体显示不均匀骨质破坏。1.结合临床，右乳癌术后改变；肝内多发占位，结合临床，考虑转移较前自带CT片2015-5-11略进展；T1椎体不均匀骨质破坏，考虑转移，较前变化不著2.脂肪肝；3.右肾囊肿；4.腹膜后淋巴结肿大，较前变化不著；5.双肺小结节灶，较前变化不著，建议观察。</t>
+    <t>右乳术后,术区壁未见增厚及异常强化。右侧腋窝结构紊乱,未见占位性病变。左乳及腋窝内未见异常密度灶。双侧内乳区、双侧肺门及纵隔未见增大淋巴结。双肺野内可见数个小结节灶,大者直径约0.6CM,边界欠清。肝脏密度普遍性减低,实质内见数个结节灶,大者直径约3.5CM,边缘有强化。胆囊、胰腺、脾、左肾、肾上腺未见异常,右肾内示一囊性低密度灶,边界清。腹膜后胰头后方、门腔间隙、腹主动脉旁可见数个结节灶,大者短径约1.0CM。各咽壁不厚,双侧颈部未见肿大淋巴结影。腮腺及双侧甲状腺未见异常。子宫未见显示,阴道残端未见增厚及异常强化。膀胱充盈可,壁不厚。盆腔内未见积液及肿大淋巴结。双侧腹股沟区示小淋巴结,大者短径约0.6CM。骨窗显示T1椎体显示不均匀骨质破坏。1.结合临床,右乳癌术后改变;肝内多发占位,结合临床,考虑转移较前自带CT片2015-5-11略进展;T1椎体不均匀骨质破坏,考虑转移,较前变化不著2.脂肪肝;3.右肾囊肿;4.腹膜后淋巴结肿大,较前变化不著;5.双肺小结节灶,较前变化不著,建议观察。</t>
   </si>
   <si>
     <t>肝,T1椎体</t>
   </si>
   <si>
-    <t>1.右肺上叶前段中心型肺癌并阻塞性炎症，请结合纤维支气管镜检查；2.右肺下叶背段小结节，转移瘤不除外，随诊。右肺上叶前段见不规则团块影，可见分叶征及血管集束征，肿块大小约为2.20CM×1.87CM，CT值约为28HU，增强后三期CT值约为94、87、68HU。周围见片状模糊影。右肺下叶背段见小结节影，两肺门区未见异常。所示气管支气管影正常。纵隔内未见增大的淋巴结。两胸腔无积液征象。主动脉及冠状动脉管壁见钙化影。</t>
+    <t>1.右肺上叶前段中心型肺癌并阻塞性炎症,请结合纤维支气管镜检查;2.右肺下叶背段小结节,转移瘤不除外,随诊。右肺上叶前段见不规则团块影,可见分叶征及血管集束征,肿块大小约为2.20CM×1.87CM,CT值约为28HU,增强后三期CT值约为94、87、68HU。周围见片状模糊影。右肺下叶背段见小结节影,两肺门区未见异常。所示气管支气管影正常。纵隔内未见增大的淋巴结。两胸腔无积液征象。主动脉及冠状动脉管壁见钙化影。</t>
   </si>
   <si>
     <t>2.20CM×1.87CM</t>
@@ -473,7 +473,7 @@
     <t>右肺下叶背段</t>
   </si>
   <si>
-    <t>双侧胸廓不对称，右侧胸廓塌陷，右肺体积减小，右肺下叶见团块状高密度影，形态不规则，边界不清楚，大小约4.2CM×5.2CM，CT值约37HU，右侧主支气管及各叶支气管受压变窄；右侧胸膜弥漫性增厚，右肺间隔结节样增厚；右侧胸腔可见包裹性积液；右侧腋窝、纵隔淋巴结增大，大者短径约1.4CM。左肺下叶外基底段(S34)可见粟粒影。心影大小正常范围。右侧第2、4、6、7、8肋骨、胸3椎体骨质密度不均匀增高，形态不规整。右侧乳腺外上象限内见一结节影，径约1.0CM，边界清晰，其内见点状钙化。1.右下肺中心型肺癌，并右肺间质性改变，考虑淋巴道转移，右侧胸膜转移，右侧胸腔包裹性积液；右侧腋窝及纵隔淋巴结转移；右侧多个肋骨、胸3椎体成骨性转移；较2014.01.14CT相仿，请结合临床；2.右乳钙化结节，较前相仿；3.左肺下叶外基底段粟粒灶，较前相仿。</t>
+    <t>双侧胸廓不对称,右侧胸廓塌陷,右肺体积减小,右肺下叶见团块状高密度影,形态不规则,边界不清楚,大小约4.2CM×5.2CM,CT值约37HU,右侧主支气管及各叶支气管受压变窄;右侧胸膜弥漫性增厚,右肺间隔结节样增厚;右侧胸腔可见包裹性积液;右侧腋窝、纵隔淋巴结增大,大者短径约1.4CM。左肺下叶外基底段(S34)可见粟粒影。心影大小正常范围。右侧第2、4、6、7、8肋骨、胸3椎体骨质密度不均匀增高,形态不规整。右侧乳腺外上象限内见一结节影,径约1.0CM,边界清晰,其内见点状钙化。1.右下肺中心型肺癌,并右肺间质性改变,考虑淋巴道转移,右侧胸膜转移,右侧胸腔包裹性积液;右侧腋窝及纵隔淋巴结转移;右侧多个肋骨、胸3椎体成骨性转移;较2014.01.14CT相仿,请结合临床;2.右乳钙化结节,较前相仿;3.左肺下叶外基底段粟粒灶,较前相仿。</t>
   </si>
   <si>
     <t>4.2CM×5.2CM</t>
@@ -482,13 +482,13 @@
     <t>右侧胸膜,纵隔淋巴结,肋骨,椎体,淋巴道</t>
   </si>
   <si>
-    <t>1.左乳癌术后，肝脏多发转移瘤2.右侧心膈角区淋巴结稍大3.左肺上叶含气囊肿4.双肾小囊肿5.左侧附件区囊肿左乳术后缺如，部分胸肌存在，术区未见明显增厚及异常强化；左侧腋窝术后，结构紊乱。右乳及右侧腋窝未见明确异常。左肺上叶可见类圆形过度充气区，边界清晰，余双侧肺野清晰，肺纹理正常，肺内未见实质性病变影。双侧各叶、段支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。胸腔内未见积液。胸廓诸骨未见骨质破坏。右侧心膈角区淋巴结稍大，短径约0.5CM。肝脏实质内可见多发低密度肿块及结节灶，大者直径约10.1CM，边界欠清，其内可见大片状低密度坏死区。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺形态、大小、密度未见异常。双肾实质内可见散在小囊性密度灶，大者直径约0.3CM，边界清晰，未见强化。腹腔及腹膜后未见增大淋巴结。膀胱充盈可，壁不厚。子宫形态大小密度可，左侧附件区可见一类圆形囊性低密度灶，直径约5.4CM，边界清晰，未见强化。盆腔内未见积液及肿大淋巴结。</t>
+    <t>1.左乳癌术后,肝脏多发转移瘤2.右侧心膈角区淋巴结稍大3.左肺上叶含气囊肿4.双肾小囊肿5.左侧附件区囊肿左乳术后缺如,部分胸肌存在,术区未见明显增厚及异常强化;左侧腋窝术后,结构紊乱。右乳及右侧腋窝未见明确异常。左肺上叶可见类圆形过度充气区,边界清晰,余双侧肺野清晰,肺纹理正常,肺内未见实质性病变影。双侧各叶、段支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。胸腔内未见积液。胸廓诸骨未见骨质破坏。右侧心膈角区淋巴结稍大,短径约0.5CM。肝脏实质内可见多发低密度肿块及结节灶,大者直径约10.1CM,边界欠清,其内可见大片状低密度坏死区。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺形态、大小、密度未见异常。双肾实质内可见散在小囊性密度灶,大者直径约0.3CM,边界清晰,未见强化。腹腔及腹膜后未见增大淋巴结。膀胱充盈可,壁不厚。子宫形态大小密度可,左侧附件区可见一类圆形囊性低密度灶,直径约5.4CM,边界清晰,未见强化。盆腔内未见积液及肿大淋巴结。</t>
   </si>
   <si>
     <t>肝脏</t>
   </si>
   <si>
-    <t>双侧胸廓不对称，右侧胸廓塌陷，右肺体积减小，右肺下叶见团块状高密度影，形态不规则，边界不清楚，大小约3.97CM×4.64CM，CT值约29HU，右侧主支气管及下叶支气管受压变窄；右肺野及右胸膜可见高密度结节影，大小不一；右侧胸腔及右侧叶间裂见高密度影，部分包裹，右侧胸腔可见弧形液性密度影，右侧胸膜不均匀增厚。纵隔淋巴结增大，径长者约为1.28CM。心影大小正常范围。右侧第2、4、7、8肋骨骨质密度不均匀增高，形态不规整，其内可见骨质破坏。右侧乳腺内见一结节影，径约0.9CM，边界清晰，其内见点状钙化。1.右下中心型肺癌，右肺多发转移瘤，侵及右侧胸膜，右侧多个肋骨成骨性转移，较2013.04.19CT片，肋骨转移范围扩大；2.右乳钙化结节，较前相仿；3.腹部病变，请结合腹部检查。</t>
+    <t>双侧胸廓不对称,右侧胸廓塌陷,右肺体积减小,右肺下叶见团块状高密度影,形态不规则,边界不清楚,大小约3.97CM×4.64CM,CT值约29HU,右侧主支气管及下叶支气管受压变窄;右肺野及右胸膜可见高密度结节影,大小不一;右侧胸腔及右侧叶间裂见高密度影,部分包裹,右侧胸腔可见弧形液性密度影,右侧胸膜不均匀增厚。纵隔淋巴结增大,径长者约为1.28CM。心影大小正常范围。右侧第2、4、7、8肋骨骨质密度不均匀增高,形态不规整,其内可见骨质破坏。右侧乳腺内见一结节影,径约0.9CM,边界清晰,其内见点状钙化。1.右下中心型肺癌,右肺多发转移瘤,侵及右侧胸膜,右侧多个肋骨成骨性转移,较2013.04.19CT片,肋骨转移范围扩大;2.右乳钙化结节,较前相仿;3.腹部病变,请结合腹部检查。</t>
   </si>
   <si>
     <t>3.97CM×4.64CM</t>
@@ -497,13 +497,13 @@
     <t>右肺,右侧胸膜,肋骨</t>
   </si>
   <si>
-    <t>双侧胸廓不对称，右侧胸廓塌陷，右肺体积减小，右肺下叶见高密度肿块影，形态不规则，边界不清楚，大小约1.89CM×3.6CM，CT值约29HU；右肺野及右胸膜可见高密度结节影，大小不一；右侧胸腔及右侧叶间裂见液性密度影，部分形成包裹，右侧胸腔可见弧形液性密度影，右侧胸膜不均匀增厚，邻近肺组织部分受压膨胀不全。右肺门区增大的淋巴结。心影略增大，右侧心膈角区多发结节，右侧第2、8肋骨骨质密度不均匀增高，形态不规整，其内可见骨质破坏。右侧乳腺内见一结节影，径约0.9CM，边界清晰，其内见点状钙化。肝实质密度明显减低。1.右下中心型肺癌，右肺及右侧胸膜多个结节考虑转移，较前CT(201.-03-01)病变进展，右侧胸腔积液，较前增多；纵隔淋巴结增大；2.右侧第2、8肋骨成骨性转移，较前相仿；3.右乳钙化结节，详查；4.脂肪肝。</t>
+    <t>双侧胸廓不对称,右侧胸廓塌陷,右肺体积减小,右肺下叶见高密度肿块影,形态不规则,边界不清楚,大小约1.89CM×3.6CM,CT值约29HU;右肺野及右胸膜可见高密度结节影,大小不一;右侧胸腔及右侧叶间裂见液性密度影,部分形成包裹,右侧胸腔可见弧形液性密度影,右侧胸膜不均匀增厚,邻近肺组织部分受压膨胀不全。右肺门区增大的淋巴结。心影略增大,右侧心膈角区多发结节,右侧第2、8肋骨骨质密度不均匀增高,形态不规整,其内可见骨质破坏。右侧乳腺内见一结节影,径约0.9CM,边界清晰,其内见点状钙化。肝实质密度明显减低。1.右下中心型肺癌,右肺及右侧胸膜多个结节考虑转移,较前CT(201.-03-01)病变进展,右侧胸腔积液,较前增多;纵隔淋巴结增大;2.右侧第2、8肋骨成骨性转移,较前相仿;3.右乳钙化结节,详查;4.脂肪肝。</t>
   </si>
   <si>
     <t>1.89CM×3.6CM</t>
   </si>
   <si>
-    <t>1.左肺中心型肺癌并阻塞性肺炎，较前2011.05.03片缩小，纵隔淋巴结及肺内淋巴道转移，左侧胸腔及叶间积液，较前未见明显变化；2.心包增厚伴少量积液；3.部分胸椎椎体内结节样致密影考虑转移，建议详查。左肺下叶背段支气管处团块影，支气管远端截断，病灶最大层面大小约2.8CM×4.0CM，CT值约51HU，其远端可见条状软组织密度影，双肺多发粟粒影；双肺纹理增强、模糊，余双侧支气管未见确切狭窄征象。右肺门未见明显异常。纵隔内淋巴结肿大，部分融合，大小约1.37CM，心脏不大，心包增厚，最厚约0.92CM；双侧胸膜未见增厚，左侧胸腔弧形液性密度影。部分胸椎椎体内可见结节样致密影。</t>
+    <t>1.左肺中心型肺癌并阻塞性肺炎,较前2011.05.03片缩小,纵隔淋巴结及肺内淋巴道转移,左侧胸腔及叶间积液,较前未见明显变化;2.心包增厚伴少量积液;3.部分胸椎椎体内结节样致密影考虑转移,建议详查。左肺下叶背段支气管处团块影,支气管远端截断,病灶最大层面大小约2.8CM×4.0CM,CT值约51HU,其远端可见条状软组织密度影,双肺多发粟粒影;双肺纹理增强、模糊,余双侧支气管未见确切狭窄征象。右肺门未见明显异常。纵隔内淋巴结肿大,部分融合,大小约1.37CM,心脏不大,心包增厚,最厚约0.92CM;双侧胸膜未见增厚,左侧胸腔弧形液性密度影。部分胸椎椎体内可见结节样致密影。</t>
   </si>
   <si>
     <t>2.8CM×4.0CM</t>
@@ -512,7 +512,7 @@
     <t>纵隔淋巴结,肺内淋巴道,胸椎椎体</t>
   </si>
   <si>
-    <t>双肺支气管血管束增粗、模糊，双肺透过度不均，双肺可见多发囊状透亮影。左肺门可见不规则软组织密度影，边缘呈分叶状，最大截面约为4.65CM×4.21CM，平扫CT值约为21HU，增强扫描呈轻度不均匀强化，三期CT值分别为55HU、77HU、72HU。双肺下叶小叶间隔增厚，部分呈蜂窝状改变，左肺下叶可见不规则高密度影。右肺上叶(49、46、43)、下叶(27)、左肺上叶(47、20)可见小结节影，大者径约为1.03CM。纵隔及左肺门可见多发稍大淋巴结影，大者径约为1.41CM。两胸腔无积液征象。主动脉走行区可见条形钙化影。所示甲状腺左叶可见圆形稍低密度影，边缘模糊，最大截面约为1.66CM×1.67CM，增强未见明显强化。1.左肺门中心型肺癌伴左肺下叶阻塞性肺炎可能；纵隔及左肺门多发淋巴结，转移不除外；2.肺气肿征象；双肺肺大泡；双肺下叶间质性改变；3.甲状腺左叶病变，请结合相关检查。</t>
+    <t>双肺支气管血管束增粗、模糊,双肺透过度不均,双肺可见多发囊状透亮影。左肺门可见不规则软组织密度影,边缘呈分叶状,最大截面约为4.65CM×4.21CM,平扫CT值约为21HU,增强扫描呈轻度不均匀强化,三期CT值分别为55HU、77HU、72HU。双肺下叶小叶间隔增厚,部分呈蜂窝状改变,左肺下叶可见不规则高密度影。右肺上叶(49、46、43)、下叶(27)、左肺上叶(47、20)可见小结节影,大者径约为1.03CM。纵隔及左肺门可见多发稍大淋巴结影,大者径约为1.41CM。两胸腔无积液征象。主动脉走行区可见条形钙化影。所示甲状腺左叶可见圆形稍低密度影,边缘模糊,最大截面约为1.66CM×1.67CM,增强未见明显强化。1.左肺门中心型肺癌伴左肺下叶阻塞性肺炎可能;纵隔及左肺门多发淋巴结,转移不除外;2.肺气肿征象;双肺肺大泡;双肺下叶间质性改变;3.甲状腺左叶病变,请结合相关检查。</t>
   </si>
   <si>
     <t>左肺门</t>
@@ -521,13 +521,13 @@
     <t>4.65CM×4.21CM</t>
   </si>
   <si>
-    <t>双肺支气管血管束增强。右肺下叶见团片影，较大截面大小约2.4CM×4.3CM，CT值约30HU，边缘毛糙。右肺上叶(S18、23)、下叶(S40)及左肺上叶(S15、18)、下叶(S30)见结节影，较大者径约0.5CM。两肺门区未见异常。纵隔见多发小淋巴结影，较大者短径约1.0CM。两胸腔未见积液征象。主动脉、冠脉壁见条状致密影。胸3右侧横突见结节状致密影；右侧第4肋见片状致密影。双侧部分肋骨形态不整。胸8椎体见骨质破坏，内见斑片状致密影；部分胸椎内见金属固定物影。1.右肺下叶肺癌，较2016.9.19CT片减小；双肺转移瘤，较前明显减少、减小；纵膈多发小淋巴结，较前减小；2.胸3右侧横突、右侧第4肋致密灶，较前相仿；胸8椎体骨质破坏，较前相仿；双侧部分肋骨骨质欠整，请结合临床；部分胸椎术后改变。</t>
+    <t>双肺支气管血管束增强。右肺下叶见团片影,较大截面大小约2.4CM×4.3CM,CT值约30HU,边缘毛糙。右肺上叶(S18、23)、下叶(S40)及左肺上叶(S15、18)、下叶(S30)见结节影,较大者径约0.5CM。两肺门区未见异常。纵隔见多发小淋巴结影,较大者短径约1.0CM。两胸腔未见积液征象。主动脉、冠脉壁见条状致密影。胸3右侧横突见结节状致密影;右侧第4肋见片状致密影。双侧部分肋骨形态不整。胸8椎体见骨质破坏,内见斑片状致密影;部分胸椎内见金属固定物影。1.右肺下叶肺癌,较2016.9.19CT片减小;双肺转移瘤,较前明显减少、减小;纵膈多发小淋巴结,较前减小;2.胸3右侧横突、右侧第4肋致密灶,较前相仿;胸8椎体骨质破坏,较前相仿;双侧部分肋骨骨质欠整,请结合临床;部分胸椎术后改变。</t>
   </si>
   <si>
     <t>2.4CM×4.3CM</t>
   </si>
   <si>
-    <t>右侧胸廓塌陷，右肺体积减小，纵隔右移，右肺下叶见团块状高密度影，形态不规则，边界不清楚，较大层面大小约9.0CM×6.0CM，CT值约19HU，右侧主支气管及各叶支气管受压变窄；右肺小叶间隔增厚，右侧胸膜弥漫性增厚，右侧胸腔可见包裹性积液；右侧腋窝、纵隔淋巴结增大，大者短径约1.5CM。左肺下叶外基底段(S32)可见粟粒影。心脏大血管未见异常，右侧第2、4、6、7、8肋骨、胸3椎体骨质密度不均匀增高，形态不规整。右第1肋欠整，右侧乳腺内见一结节影，径约1.0CM，边界清晰，其内见点状钙化。1.右下肺中心型肺癌，右肺间质性改变，考虑淋巴道转移，右侧胸膜转移，右侧胸腔包裹性积液；右侧腋窝及纵隔淋巴结转移；右侧多个肋骨、胸3椎体成骨性转移；较2014.03.19CT相仿；2.右乳钙化结节，较前相仿；3.左肺下叶外基底段粟粒灶，较前相仿；4.右第1肋欠整。</t>
+    <t>右侧胸廓塌陷,右肺体积减小,纵隔右移,右肺下叶见团块状高密度影,形态不规则,边界不清楚,较大层面大小约9.0CM×6.0CM,CT值约19HU,右侧主支气管及各叶支气管受压变窄;右肺小叶间隔增厚,右侧胸膜弥漫性增厚,右侧胸腔可见包裹性积液;右侧腋窝、纵隔淋巴结增大,大者短径约1.5CM。左肺下叶外基底段(S32)可见粟粒影。心脏大血管未见异常,右侧第2、4、6、7、8肋骨、胸3椎体骨质密度不均匀增高,形态不规整。右第1肋欠整,右侧乳腺内见一结节影,径约1.0CM,边界清晰,其内见点状钙化。1.右下肺中心型肺癌,右肺间质性改变,考虑淋巴道转移,右侧胸膜转移,右侧胸腔包裹性积液;右侧腋窝及纵隔淋巴结转移;右侧多个肋骨、胸3椎体成骨性转移;较2014.03.19CT相仿;2.右乳钙化结节,较前相仿;3.左肺下叶外基底段粟粒灶,较前相仿;4.右第1肋欠整。</t>
   </si>
   <si>
     <t>右下肺</t>
@@ -536,22 +536,22 @@
     <t>9.0CM×6.0CM</t>
   </si>
   <si>
-    <t>1.左侧乳腺癌伴左侧腋窝淋巴结转移，较2014-11-06片好转2.肝脏重度脂肪变性3.心包旁囊性密度灶，考虑为心包囊肿双乳腺体丰富，左乳外侧象限见片状及结节状软组织密度影，相互融合呈肿块状，边缘模糊，病变大小不易测量，估计长径约1.4CM；增强扫描轻度强化，其强化程度较化疗前显著降低。左侧乳头未见明显内陷。右乳未见明确异常密度灶。左侧腋窝原增大淋巴结显著缩小，均不足1.0CM。右侧腋窝淋巴结内见脂肪密度的淋巴结门，考虑为正常淋巴结。双侧内乳区、双肺门及纵隔内未见显著增大淋巴结。另于纵隔内心包右旁见大小约2.9CM×2.1CM囊性密度灶，边缘能清晰，增强后未见强化。双肺野较清晰，未见明确异常密度灶。双侧胸腔内未见液性密度影。扫描野肝实质密度显著减低。</t>
+    <t>1.左侧乳腺癌伴左侧腋窝淋巴结转移,较2014-11-06片好转2.肝脏重度脂肪变性3.心包旁囊性密度灶,考虑为心包囊肿双乳腺体丰富,左乳外侧象限见片状及结节状软组织密度影,相互融合呈肿块状,边缘模糊,病变大小不易测量,估计长径约1.4CM;增强扫描轻度强化,其强化程度较化疗前显著降低。左侧乳头未见明显内陷。右乳未见明确异常密度灶。左侧腋窝原增大淋巴结显著缩小,均不足1.0CM。右侧腋窝淋巴结内见脂肪密度的淋巴结门,考虑为正常淋巴结。双侧内乳区、双肺门及纵隔内未见显著增大淋巴结。另于纵隔内心包右旁见大小约2.9CM×2.1CM囊性密度灶,边缘能清晰,增强后未见强化。双肺野较清晰,未见明确异常密度灶。双侧胸腔内未见液性密度影。扫描野肝实质密度显著减低。</t>
   </si>
   <si>
     <t>1.4CM</t>
   </si>
   <si>
-    <t>1.结合临床，左乳癌术后，术区小片状高密度影，建议观察；宫颈转移，骨转移，变化不著2.左肺下叶类结节灶，变化不著；左肺炎症，较前(2015-12-25)好转3.子宫肌瘤4.双侧附件略饱满5.双侧腋窝、左锁上、腹腔腹膜后、盆腔小淋巴结左乳外侧局部结构紊乱，局部可见小斑片状强化影，未见具体结节灶。左肺下叶见斑片影。左肺下叶胸膜下见一直径不足0.5CM小类结节灶。双侧腋窝及左锁上见短径不足1.0CM小淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。左侧肾上腺饱满，肝、胆、胰、脾、右侧肾上腺及双肾未见异常。腹腔及腹膜后、膈上见大者短径约0.5CM小淋巴结。宫颈体积稍大，密度不均，增强后强化不均。宫体体积不规则增大，见多发软组织结节灶，增强后呈高低不均强化。双侧附件饱满。膀胱充盈良好，壁未见增厚。盆腔内髂血管旁、骶前见短径不足0.5CM小淋巴结。多发椎体及胸骨示密度不均。左侧坐骨局限性骨质密度减低。</t>
-  </si>
-  <si>
-    <t>右肺下叶可见不规则稍低密度影，与右肺门分界不清，边缘毛糙，CT值约为34HU，其内密度不均，长径约为2.0CM×1.5CM，邻近肺组织可见模糊影，右肺下叶内基底段支气管截断，右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影，边缘毛糙，大者径约为0.6CM；纵隔内未见增大淋巴结影。右侧胸腔、心包内见少许液性密度影。甲状腺明显肿大。1.右肺下叶肺癌，并双肺、右胸膜多发转移，较2015-10-8CT片未见明显变化；2.右侧胸腔积液，心包积液，较前相仿；2.甲状腺饱满。</t>
+    <t>1.结合临床,左乳癌术后,术区小片状高密度影,建议观察;宫颈转移,骨转移,变化不著2.左肺下叶类结节灶,变化不著;左肺炎症,较前(2015-12-25)好转3.子宫肌瘤4.双侧附件略饱满5.双侧腋窝、左锁上、腹腔腹膜后、盆腔小淋巴结左乳外侧局部结构紊乱,局部可见小斑片状强化影,未见具体结节灶。左肺下叶见斑片影。左肺下叶胸膜下见一直径不足0.5CM小类结节灶。双侧腋窝及左锁上见短径不足1.0CM小淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。左侧肾上腺饱满,肝、胆、胰、脾、右侧肾上腺及双肾未见异常。腹腔及腹膜后、膈上见大者短径约0.5CM小淋巴结。宫颈体积稍大,密度不均,增强后强化不均。宫体体积不规则增大,见多发软组织结节灶,增强后呈高低不均强化。双侧附件饱满。膀胱充盈良好,壁未见增厚。盆腔内髂血管旁、骶前见短径不足0.5CM小淋巴结。多发椎体及胸骨示密度不均。左侧坐骨局限性骨质密度减低。</t>
+  </si>
+  <si>
+    <t>右肺下叶可见不规则稍低密度影,与右肺门分界不清,边缘毛糙,CT值约为34HU,其内密度不均,长径约为2.0CM×1.5CM,邻近肺组织可见模糊影,右肺下叶内基底段支气管截断,右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影,边缘毛糙,大者径约为0.6CM;纵隔内未见增大淋巴结影。右侧胸腔、心包内见少许液性密度影。甲状腺明显肿大。1.右肺下叶肺癌,并双肺、右胸膜多发转移,较2015-10-8CT片未见明显变化;2.右侧胸腔积液,心包积液,较前相仿;2.甲状腺饱满。</t>
   </si>
   <si>
     <t>2.0CM×1.5CM</t>
   </si>
   <si>
-    <t>1.右侧乳腺癌，右侧腋窝淋巴结转移；2.左肺上叶索条灶。右侧乳腺外侧象限内可见一软组织密度影，大小为1.92CM×1.85CM，CT值为42HU，增强后两期CT值为79HU、72HU。右侧腋窝内可见一肿大淋巴结影，大小为4.27CM×3.1CM。左肺上叶舌段可见索条灶。两肺纹理清晰。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。</t>
+    <t>1.右侧乳腺癌,右侧腋窝淋巴结转移;2.左肺上叶索条灶。右侧乳腺外侧象限内可见一软组织密度影,大小为1.92CM×1.85CM,CT值为42HU,增强后两期CT值为79HU、72HU。右侧腋窝内可见一肿大淋巴结影,大小为4.27CM×3.1CM。左肺上叶舌段可见索条灶。两肺纹理清晰。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。</t>
   </si>
   <si>
     <t>右侧乳腺</t>
@@ -563,7 +563,7 @@
     <t>右侧腋窝淋巴结</t>
   </si>
   <si>
-    <t>左肺下叶背段可见团块影，较大截面大小约4.38CM×3.30CM，平扫CT值约为36HU，边界尚清，浅分叶状，周围可见斑片状稍高密度影。双肺另见弥漫多发大小不等结节影。两肺门区未见异常。纵隔内未见淋巴结增大。右侧胸腔内可见弧形积液影。心脏大血管未见异常。左侧肩胛骨、部分肋骨、胸椎及附件形态欠规整，可见骨质破坏区及软组织肿块。1.左肺下叶背段周围型肺癌伴双肺多发转移瘤，较前2016-01-21CT相仿，左肺部分转移瘤较前减小；右侧胸水；2.左侧肩胛骨、部分肋骨、胸椎及附件形态欠规整，转移不除外，胸椎改变较前增多，请结合临床。</t>
+    <t>左肺下叶背段可见团块影,较大截面大小约4.38CM×3.30CM,平扫CT值约为36HU,边界尚清,浅分叶状,周围可见斑片状稍高密度影。双肺另见弥漫多发大小不等结节影。两肺门区未见异常。纵隔内未见淋巴结增大。右侧胸腔内可见弧形积液影。心脏大血管未见异常。左侧肩胛骨、部分肋骨、胸椎及附件形态欠规整,可见骨质破坏区及软组织肿块。1.左肺下叶背段周围型肺癌伴双肺多发转移瘤,较前2016-01-21CT相仿,左肺部分转移瘤较前减小;右侧胸水;2.左侧肩胛骨、部分肋骨、胸椎及附件形态欠规整,转移不除外,胸椎改变较前增多,请结合临床。</t>
   </si>
   <si>
     <t>4.38CM×3.30CM</t>
@@ -572,13 +572,13 @@
     <t>双肺,肩胛骨,肋骨,胸椎及附件</t>
   </si>
   <si>
-    <t>1.右下肺中心型肺癌，右肺间质性改变，考虑淋巴道转移，右侧胸膜转移，右侧胸腔包裹性积液；右侧腋窝及纵隔淋巴结转移；右侧多个肋骨、胸3椎体成骨性转移；较2014.03.19CT相仿；2.右乳钙化结节，较前相仿；3.左肺下叶外基底段粟粒灶，较前相仿；4.右第1肋欠整。右侧胸廓塌陷，右肺体积减小，纵隔右移，右肺下叶见团块状高密度影，形态不规则，边界不清楚，较大层面大小约9.0CM×6.0CM，CT值约19HU，右侧主支气管及各叶支气管受压变窄；右肺小叶间隔增厚，右侧胸膜弥漫性增厚，右侧胸腔可见包裹性积液；右侧腋窝、纵隔淋巴结增大，大者短径约1.5CM。左肺下叶外基底段(S32)可见粟粒影。心脏大血管未见异常，右侧第2、4、6、7、8肋骨、胸3椎体骨质密度不均匀增高，形态不规整。右第1肋欠整，右侧乳腺内见一结节影，径约1.0CM，边界清晰，其内见点状钙化。</t>
+    <t>1.右下肺中心型肺癌,右肺间质性改变,考虑淋巴道转移,右侧胸膜转移,右侧胸腔包裹性积液;右侧腋窝及纵隔淋巴结转移;右侧多个肋骨、胸3椎体成骨性转移;较2014.03.19CT相仿;2.右乳钙化结节,较前相仿;3.左肺下叶外基底段粟粒灶,较前相仿;4.右第1肋欠整。右侧胸廓塌陷,右肺体积减小,纵隔右移,右肺下叶见团块状高密度影,形态不规则,边界不清楚,较大层面大小约9.0CM×6.0CM,CT值约19HU,右侧主支气管及各叶支气管受压变窄;右肺小叶间隔增厚,右侧胸膜弥漫性增厚,右侧胸腔可见包裹性积液;右侧腋窝、纵隔淋巴结增大,大者短径约1.5CM。左肺下叶外基底段(S32)可见粟粒影。心脏大血管未见异常,右侧第2、4、6、7、8肋骨、胸3椎体骨质密度不均匀增高,形态不规整。右第1肋欠整,右侧乳腺内见一结节影,径约1.0CM,边界清晰,其内见点状钙化。</t>
   </si>
   <si>
     <t>淋巴道转移,右侧胸膜,纵隔淋巴结,右侧多个肋骨,胸3椎体</t>
   </si>
   <si>
-    <t>1.右肺下叶肺癌，并纵膈淋巴结转移，较前2016-07-18CT进展；2.双肺多发转移瘤，部分病灶较前新发，部分增大；3.第3胸椎右侧横突高密度灶，较前相仿；右侧第4肋骨致密灶；第8胸椎骨质破坏，较前相仿；双侧第5、7肋骨骨质欠整，部分较前新发，请结合临床；部分胸椎术后改变。右肺下叶基底段可见团片影，较大截面大小约4.39CM×4.28CM，CT值约28HU，右肺下叶部分支气管远端截断，呈分叶状，边缘可见毛刺，邻近胸膜凹陷。双肺可见多发结节影；两肺门区未见异常。纵隔见增大淋巴结影，大者短径约2.1CM。两胸腔无积液征象。主动脉、冠状动脉管壁钙化。第3胸椎右侧横突内可见类圆形致密影。右侧第4肋骨可见致密影。双侧第5、7肋骨可见骨质形态不整，骨皮质不连续。第8胸椎骨质不规整，其内可见斑片状高密度影。部分胸椎内见金属固定物影。</t>
+    <t>1.右肺下叶肺癌,并纵膈淋巴结转移,较前2016-07-18CT进展;2.双肺多发转移瘤,部分病灶较前新发,部分增大;3.第3胸椎右侧横突高密度灶,较前相仿;右侧第4肋骨致密灶;第8胸椎骨质破坏,较前相仿;双侧第5、7肋骨骨质欠整,部分较前新发,请结合临床;部分胸椎术后改变。右肺下叶基底段可见团片影,较大截面大小约4.39CM×4.28CM,CT值约28HU,右肺下叶部分支气管远端截断,呈分叶状,边缘可见毛刺,邻近胸膜凹陷。双肺可见多发结节影;两肺门区未见异常。纵隔见增大淋巴结影,大者短径约2.1CM。两胸腔无积液征象。主动脉、冠状动脉管壁钙化。第3胸椎右侧横突内可见类圆形致密影。右侧第4肋骨可见致密影。双侧第5、7肋骨可见骨质形态不整,骨皮质不连续。第8胸椎骨质不规整,其内可见斑片状高密度影。部分胸椎内见金属固定物影。</t>
   </si>
   <si>
     <t>4.39CM×4.28CM</t>
@@ -587,7 +587,7 @@
     <t>纵膈淋巴结,双肺</t>
   </si>
   <si>
-    <t>右肺上叶尖段见4.5CM×3.5CM大小的肿块，边界尚清，平扫CT值为27HU，增强扫描肿块呈环形强化，三期CT值约38HU、60HU、42HU，内见不强化的低密度区，右肺上叶支气管壁增厚毛糙。双肺支气管血管束稍粗。双肺内见多个囊状低密度影。双肺门区未见异常。纵隔内见增大的淋巴结，较大者短径约3.2CM。主动脉、冠脉钙化影。1.右肺上叶尖段肿块，考虑肺癌，纵膈淋巴结转移可能大，右肺上叶支气管壁局部增厚毛糙，请结合临床；2.支气管炎、肺气肿。</t>
+    <t>右肺上叶尖段见4.5CM×3.5CM大小的肿块,边界尚清,平扫CT值为27HU,增强扫描肿块呈环形强化,三期CT值约38HU、60HU、42HU,内见不强化的低密度区,右肺上叶支气管壁增厚毛糙。双肺支气管血管束稍粗。双肺内见多个囊状低密度影。双肺门区未见异常。纵隔内见增大的淋巴结,较大者短径约3.2CM。主动脉、冠脉钙化影。1.右肺上叶尖段肿块,考虑肺癌,纵膈淋巴结转移可能大,右肺上叶支气管壁局部增厚毛糙,请结合临床;2.支气管炎、肺气肿。</t>
   </si>
   <si>
     <t>4.5CM×3.5CM</t>
@@ -596,7 +596,7 @@
     <t>纵膈淋巴结</t>
   </si>
   <si>
-    <t>1.右上中央型肺癌伴阻塞性炎症，右肺上叶孤立小结节不除外转移，纵隔淋巴结转移及右肺动脉受累不除外；2.左下胸膜多发结节样增厚；3.两肺气肿改变。右上肺门见沿右上叶支气管及后段支气管6.5CM×4.5CM×6.0CM、深入纵隔的软组织密度团块影，致相应支气管轻度狭窄，团块形态不规则，边缘不光整，见多数长短不一细密毛刺，内部密度不均，见中心坏死更低密度，CT值48BHU-12HU，增强后呈中度延迟强化，动脉期CT值63HU-12HU，包绕右肺门血管，致血管局限略显变窄，静脉期CT值73HU-12HU。团块远端，即右肺上叶尖段、后段见模糊片影，团块外侧近斜裂处并见一小结节，直径0.5CM。两肺透过度不均匀增高，胸膜下为主见多发肺大泡影。两胸腔无积液征象，左下胸膜见多处局限增厚，成波浪状。所示骨质未见明显转移破坏改变。</t>
+    <t>1.右上中央型肺癌伴阻塞性炎症,右肺上叶孤立小结节不除外转移,纵隔淋巴结转移及右肺动脉受累不除外;2.左下胸膜多发结节样增厚;3.两肺气肿改变。右上肺门见沿右上叶支气管及后段支气管6.5CM×4.5CM×6.0CM、深入纵隔的软组织密度团块影,致相应支气管轻度狭窄,团块形态不规则,边缘不光整,见多数长短不一细密毛刺,内部密度不均,见中心坏死更低密度,CT值48BHU-12HU,增强后呈中度延迟强化,动脉期CT值63HU-12HU,包绕右肺门血管,致血管局限略显变窄,静脉期CT值73HU-12HU。团块远端,即右肺上叶尖段、后段见模糊片影,团块外侧近斜裂处并见一小结节,直径0.5CM。两肺透过度不均匀增高,胸膜下为主见多发肺大泡影。两胸腔无积液征象,左下胸膜见多处局限增厚,成波浪状。所示骨质未见明显转移破坏改变。</t>
   </si>
   <si>
     <t>右上肺门</t>
@@ -605,7 +605,7 @@
     <t>右肺上叶,纵隔淋巴结</t>
   </si>
   <si>
-    <t>食管下段壁厚，局部呈肿块影，最厚处约2.47CM，平扫CT值约39HU，增强扫描三期CT值约81、91、66HU，可见不均匀明显强化，贲门壁增厚，其旁及胃贲门旁、双侧腋窝可见增大淋巴结影，较大者径约1.1CM×.CM双肺上叶可见小囊状透亮影。右肺上叶(26)、左斜裂(36)可见粟粒影。两肺门区未见异常。气管右后方可见囊状气体密度影。两胸腔无积液征象。所示左侧头臂静脉可见极低密度影。主动脉及冠状动脉可见致密影。右侧第9肋可见片状高密度影。1.食管癌征象；纵隔、胃贲门旁、双侧腋窝淋巴结增大，考虑转移；请结合临床；2.肺气肿；气管憩室；3.右肺上叶、左斜裂粟粒灶，较2011.12.20CT片相仿；4.右侧第9肋高密度灶，较前相仿；5.左侧头臂静脉极低密度灶，请结合临床。</t>
+    <t>食管下段壁厚,局部呈肿块影,最厚处约2.47CM,平扫CT值约39HU,增强扫描三期CT值约81、91、66HU,可见不均匀明显强化,贲门壁增厚,其旁及胃贲门旁、双侧腋窝可见增大淋巴结影,较大者径约1.1CM×.CM双肺上叶可见小囊状透亮影。右肺上叶(26)、左斜裂(36)可见粟粒影。两肺门区未见异常。气管右后方可见囊状气体密度影。两胸腔无积液征象。所示左侧头臂静脉可见极低密度影。主动脉及冠状动脉可见致密影。右侧第9肋可见片状高密度影。1.食管癌征象;纵隔、胃贲门旁、双侧腋窝淋巴结增大,考虑转移;请结合临床;2.肺气肿;气管憩室;3.右肺上叶、左斜裂粟粒灶,较2011.12.20CT片相仿;4.右侧第9肋高密度灶,较前相仿;5.左侧头臂静脉极低密度灶,请结合临床。</t>
   </si>
   <si>
     <t>2.47CM</t>
@@ -614,19 +614,19 @@
     <t>双侧腋窝淋巴结</t>
   </si>
   <si>
-    <t>1.右肺上叶结节影，考虑为周围型肺癌可能性大，较前片2011.8.19未见明显变化；2.右肺中叶、左肺上叶及双肺下叶多发小结节影，较前相仿；双侧肱骨头、胸骨、部分椎体及肋骨密度不均，考虑转移；较前进展；3.双肺下叶炎性改变，较前进展；4.双肺上叶陈旧病灶，支气管炎；肺气肿；多发肺大泡；双侧胸膜稍厚；5.肝脏多发低密度影，请结合腹部检查。右肺上叶可见一类圆形结节影，呈浅分叶，密度尚均匀，CT值约为34HU，病灶边缘不光滑，可见细短毛刺及胸膜牵拉；病灶大小约为2.0CM×1.5CM。右肺中叶、左肺上叶及双肺下叶可见多发大小不等小结节影，大者位于右肺下叶，大小约为0.8CM×1.0CM，边缘可见毛刺。双肺上叶可见斑块状、条状高密度影及囊性透光影；双肺下叶可见斑片状淡片影。所示气管支气管未见异常扩张；双肺门区未见异常。纵隔内可见多个小淋巴结影，以隆突下最大，短径约为0.8CM；双侧胸腔未见积液征象；主动脉管壁可见多发斑点状钙化影。部分椎体及肋骨密度欠均，可见片状密度增高影。所示肝脏内可见多发低密度影。</t>
+    <t>1.右肺上叶结节影,考虑为周围型肺癌可能性大,较前片2011.8.19未见明显变化;2.右肺中叶、左肺上叶及双肺下叶多发小结节影,较前相仿;双侧肱骨头、胸骨、部分椎体及肋骨密度不均,考虑转移;较前进展;3.双肺下叶炎性改变,较前进展;4.双肺上叶陈旧病灶,支气管炎;肺气肿;多发肺大泡;双侧胸膜稍厚;5.肝脏多发低密度影,请结合腹部检查。右肺上叶可见一类圆形结节影,呈浅分叶,密度尚均匀,CT值约为34HU,病灶边缘不光滑,可见细短毛刺及胸膜牵拉;病灶大小约为2.0CM×1.5CM。右肺中叶、左肺上叶及双肺下叶可见多发大小不等小结节影,大者位于右肺下叶,大小约为0.8CM×1.0CM,边缘可见毛刺。双肺上叶可见斑块状、条状高密度影及囊性透光影;双肺下叶可见斑片状淡片影。所示气管支气管未见异常扩张;双肺门区未见异常。纵隔内可见多个小淋巴结影,以隆突下最大,短径约为0.8CM;双侧胸腔未见积液征象;主动脉管壁可见多发斑点状钙化影。部分椎体及肋骨密度欠均,可见片状密度增高影。所示肝脏内可见多发低密度影。</t>
   </si>
   <si>
     <t>双侧肱骨头,胸骨,椎体,肋骨</t>
   </si>
   <si>
-    <t>右肺门区可见片状软组织密度影，范围约为4.89CM×3.35CM，CT值约为36HU，边界不清；右肺中叶、右肺下叶部分支气管狭窄，远端闭塞；两肺内可见大片状高密度影，边缘模糊，右肺为著；双侧胸腔内可见弧形液性密度影；纵隔内可见肿大淋巴结影，径约2.67CM；主动脉、双侧冠状动脉走行区内可见条状高密度钙化影。1.右肺门肿块，考虑中央型肺癌并阻塞性炎症；2.两肺间质性炎症；3.双侧胸腔积液；4.纵隔淋巴结肿大，转移不除外。</t>
+    <t>右肺门区可见片状软组织密度影,范围约为4.89CM×3.35CM,CT值约为36HU,边界不清;右肺中叶、右肺下叶部分支气管狭窄,远端闭塞;两肺内可见大片状高密度影,边缘模糊,右肺为著;双侧胸腔内可见弧形液性密度影;纵隔内可见肿大淋巴结影,径约2.67CM;主动脉、双侧冠状动脉走行区内可见条状高密度钙化影。1.右肺门肿块,考虑中央型肺癌并阻塞性炎症;2.两肺间质性炎症;3.双侧胸腔积液;4.纵隔淋巴结肿大,转移不除外。</t>
   </si>
   <si>
     <t>4.89CM×3.35CM</t>
   </si>
   <si>
-    <t>1.左侧胸膜恶性肿瘤，对比2012.06.25前片病变范围减小；双肺、胸3椎体及纵隔淋巴结转移，较前相仿；2.右肺上叶肺大泡。左肺肋胸膜、膈胸膜、斜裂胸膜广泛明显增厚，最厚约1.5CM，CT值约30HU。两肺纹理增强，双肺野内见多发大小不等密度增高影，部分呈磨玻璃密度改变，大者约1.8CM×1.2CM；右肺上叶尖段见囊状透过度增高区。所示气管支气管影正常。纵隔内见多发小淋巴结影，大者短径0.8CM。两胸腔无积液征象。主动脉管壁见钙化影。胸3椎体见结节样致密影。</t>
+    <t>1.左侧胸膜恶性肿瘤,对比2012.06.25前片病变范围减小;双肺、胸3椎体及纵隔淋巴结转移,较前相仿;2.右肺上叶肺大泡。左肺肋胸膜、膈胸膜、斜裂胸膜广泛明显增厚,最厚约1.5CM,CT值约30HU。两肺纹理增强,双肺野内见多发大小不等密度增高影,部分呈磨玻璃密度改变,大者约1.8CM×1.2CM;右肺上叶尖段见囊状透过度增高区。所示气管支气管影正常。纵隔内见多发小淋巴结影,大者短径0.8CM。两胸腔无积液征象。主动脉管壁见钙化影。胸3椎体见结节样致密影。</t>
   </si>
   <si>
     <t>1.5CM</t>
@@ -635,7 +635,7 @@
     <t>双肺,胸3椎体,纵隔淋巴结</t>
   </si>
   <si>
-    <t>1.右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移，较前(2014-11-19)相仿；2.右肺下叶磨玻璃结节，较前相仿；3.所示多发骨转移征象，较前部分较前进展，左侧第5肋病理性骨折。右肺下叶背段见类圆形肿块影，约2.15CM×1.9CM，边缘不规整，可见多发毛刺影，并见血管影进入，牵拉斜裂胸膜，CT值约30HU。右肺门区及纵隔内可见多发肿大淋巴结影，大者短径约2.5CM，双侧胸腔未见积液征象。心脏大血管未见异常。双侧多根肋骨、胸骨柄及胸骨体内可见高密度影，多个上位胸椎椎体及附件骨质破坏。</t>
+    <t>1.右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移,较前(2014-11-19)相仿;2.右肺下叶磨玻璃结节,较前相仿;3.所示多发骨转移征象,较前部分较前进展,左侧第5肋病理性骨折。右肺下叶背段见类圆形肿块影,约2.15CM×1.9CM,边缘不规整,可见多发毛刺影,并见血管影进入,牵拉斜裂胸膜,CT值约30HU。右肺门区及纵隔内可见多发肿大淋巴结影,大者短径约2.5CM,双侧胸腔未见积液征象。心脏大血管未见异常。双侧多根肋骨、胸骨柄及胸骨体内可见高密度影,多个上位胸椎椎体及附件骨质破坏。</t>
   </si>
   <si>
     <t>2.15CM×1.9CM</t>
@@ -644,13 +644,13 @@
     <t>纵隔淋巴结,骨</t>
   </si>
   <si>
-    <t>1.右乳癌术后改变，多发肝转移瘤，较前(2015-11-10)进展；多发骨转移瘤，变化不著2.左乳内多发结节灶，原发或转移不能除外，较前进展；纵隔淋巴结肿大3.双肺炎症及纤维灶；双侧胸腔及心包腔内积液，较前增多4.左肺类结节灶，建议观察5.胆囊炎6.右肾小囊肿右乳术后缺如，部分胸肌存在，术区未见明显增厚及异常强化；右侧腋窝术后，结构紊乱。左乳内可见散在多发强化结节灶，边界较清晰，大者直径约1.5CM，增强后呈显著强化。左侧腋窝内见大者短径约0.5CM肿大淋巴结。双肺内可见散在片絮状及条索状密度增高影；左肺内可见散在类结节灶，边界较模糊。双侧各叶、段支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸腔内及心包腔内可见液性密度影。肝脏实质内可见散在多发类圆形低密度灶，边缘较模糊，大者直径约1.3CM，轻度强化。胆囊壁增厚并强化。胰、脾、左肾及双侧肾上腺未见异常；右肾实质内可见散在小囊性密度灶，边界清晰，未见强化。腹腔及腹膜后未见明显肿大淋巴结。骨窗示：胸骨、双侧锁骨头、双侧肱骨头、双侧肩胛骨、多发肋骨、多发颈胸腰椎椎体、双侧髂骨示成骨性骨质破坏。</t>
+    <t>1.右乳癌术后改变,多发肝转移瘤,较前(2015-11-10)进展;多发骨转移瘤,变化不著2.左乳内多发结节灶,原发或转移不能除外,较前进展;纵隔淋巴结肿大3.双肺炎症及纤维灶;双侧胸腔及心包腔内积液,较前增多4.左肺类结节灶,建议观察5.胆囊炎6.右肾小囊肿右乳术后缺如,部分胸肌存在,术区未见明显增厚及异常强化;右侧腋窝术后,结构紊乱。左乳内可见散在多发强化结节灶,边界较清晰,大者直径约1.5CM,增强后呈显著强化。左侧腋窝内见大者短径约0.5CM肿大淋巴结。双肺内可见散在片絮状及条索状密度增高影;左肺内可见散在类结节灶,边界较模糊。双侧各叶、段支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸腔内及心包腔内可见液性密度影。肝脏实质内可见散在多发类圆形低密度灶,边缘较模糊,大者直径约1.3CM,轻度强化。胆囊壁增厚并强化。胰、脾、左肾及双侧肾上腺未见异常;右肾实质内可见散在小囊性密度灶,边界清晰,未见强化。腹腔及腹膜后未见明显肿大淋巴结。骨窗示:胸骨、双侧锁骨头、双侧肱骨头、双侧肩胛骨、多发肋骨、多发颈胸腰椎椎体、双侧髂骨示成骨性骨质破坏。</t>
   </si>
   <si>
     <t>肝,骨,左乳</t>
   </si>
   <si>
-    <t>较2012-11-20片比：1.左肺上叶周围型肺癌，较前略缩小；双肺多发转移瘤，较前变化不大；2.纵隔及主动脉弓旁淋巴结稍大；3.胸5、11椎体内高密度影，下位一胸椎密度不均，建议详查除外转移；4.肝脏多发转移瘤，请结合腹部CT。左肺上叶尖后段见一类圆形团块影，分叶，边缘短毛刺，大小约3.70CM×2.87CM，CT值约30HU，邻近胸膜牵拉；双肺见多发大小不一棉花团样结节影；纵隔内及主动脉弓旁见多发稍大的淋巴结，大者短径约0.89CM。所示胸5椎内见结节状致密影，胸11椎体内见片状高密度影。所扫肝内见多发类圆形低密度影。</t>
+    <t>较2012-11-20片比:1.左肺上叶周围型肺癌,较前略缩小;双肺多发转移瘤,较前变化不大;2.纵隔及主动脉弓旁淋巴结稍大;3.胸5、11椎体内高密度影,下位一胸椎密度不均,建议详查除外转移;4.肝脏多发转移瘤,请结合腹部CT。左肺上叶尖后段见一类圆形团块影,分叶,边缘短毛刺,大小约3.70CM×2.87CM,CT值约30HU,邻近胸膜牵拉;双肺见多发大小不一棉花团样结节影;纵隔内及主动脉弓旁见多发稍大的淋巴结,大者短径约0.89CM。所示胸5椎内见结节状致密影,胸11椎体内见片状高密度影。所扫肝内见多发类圆形低密度影。</t>
   </si>
   <si>
     <t>3.70CM×2.87CM</t>
@@ -659,10 +659,10 @@
     <t>双肺,肝脏</t>
   </si>
   <si>
-    <t>1.右肺上叶团块，考虑中心型肺癌伴肺不张，右肺门、纵隔淋巴结转移，上腔静脉受压；2.双肺多发粟粒灶，随诊；3.右肾上腺结节，随诊；肝囊肿。右肺上叶支气管管腔变窄，支气管截断，右肺上叶见不张，平扫CT值约35HU，增强后三期CT值约78-33HU、92-38HU、71-36HU，增强后呈不均匀强化，其内见片状低密度影。右肺门、纵隔见多发增大淋巴结，大者短径约3.9CM，边界不清，部分融合成团，平扫CT值约46HU，增强后三期CT值约65HU、79HU、76HU。右肺中叶(S15)、下叶(S26)、左肺尖(S6)可见多发粟粒灶。双侧未见胸腔积液征象。心脏大血管未见明显异常，上腔静脉受压。所见右肾上腺内支见结节影，动脉期强化明显，径约0.6CM。肝内见囊状低密度影，大小约4.8CM×2.7CM，CT值约6HU。</t>
-  </si>
-  <si>
-    <t>1、右肺中心型肺癌，空腔形成，右肺门、纵隔多发淋巴结转移；2、右侧胸膜增厚；3、左肾上腺外支转移征象，腹膜后小淋巴结，请结合相关部位检查。右主支气管管壁增厚，右肺上叶可见不规则团块影，内见空腔形成，壁厚约1.4CM，CT值约34HU，内壁光整，外壁不规则；周围多发斑片、索条影；增强扫描可见轻中度不均匀强化，三期CT值约59HU、60HU、69HU。右肺门、纵隔内多发肿大淋巴结，可见融合，大者短径约1.4CM，增强扫描可见环形强化。左肺野未见异常密度影。两肺门区未见异常。支气管血管束正常，气管支气管通畅。右侧胸膜增厚，两胸腔无积液征象。心脏大血管未见异常。左肾上腺外支增粗，腹膜后见多个小淋巴结影，短径约4MM。</t>
+    <t>1.右肺上叶团块,考虑中心型肺癌伴肺不张,右肺门、纵隔淋巴结转移,上腔静脉受压;2.双肺多发粟粒灶,随诊;3.右肾上腺结节,随诊;肝囊肿。右肺上叶支气管管腔变窄,支气管截断,右肺上叶见不张,平扫CT值约35HU,增强后三期CT值约78-33HU、92-38HU、71-36HU,增强后呈不均匀强化,其内见片状低密度影。右肺门、纵隔见多发增大淋巴结,大者短径约3.9CM,边界不清,部分融合成团,平扫CT值约46HU,增强后三期CT值约65HU、79HU、76HU。右肺中叶(S15)、下叶(S26)、左肺尖(S6)可见多发粟粒灶。双侧未见胸腔积液征象。心脏大血管未见明显异常,上腔静脉受压。所见右肾上腺内支见结节影,动脉期强化明显,径约0.6CM。肝内见囊状低密度影,大小约4.8CM×2.7CM,CT值约6HU。</t>
+  </si>
+  <si>
+    <t>1、右肺中心型肺癌,空腔形成,右肺门、纵隔多发淋巴结转移;2、右侧胸膜增厚;3、左肾上腺外支转移征象,腹膜后小淋巴结,请结合相关部位检查。右主支气管管壁增厚,右肺上叶可见不规则团块影,内见空腔形成,壁厚约1.4CM,CT值约34HU,内壁光整,外壁不规则;周围多发斑片、索条影;增强扫描可见轻中度不均匀强化,三期CT值约59HU、60HU、69HU。右肺门、纵隔内多发肿大淋巴结,可见融合,大者短径约1.4CM,增强扫描可见环形强化。左肺野未见异常密度影。两肺门区未见异常。支气管血管束正常,气管支气管通畅。右侧胸膜增厚,两胸腔无积液征象。心脏大血管未见异常。左肾上腺外支增粗,腹膜后见多个小淋巴结影,短径约4MM。</t>
   </si>
   <si>
     <t>右肺</t>
@@ -671,13 +671,13 @@
     <t>右肺门,纵隔多发淋巴结,左肾上腺外支</t>
   </si>
   <si>
-    <t>1.右肺中叶周围型肺癌，与外院2012.09.12化疗前CT片相比未见明显变化；病灶周围片状高密度影，考虑阻塞性肺炎；2.双肺多发转移瘤，较前未见明显变化；3.右侧肺门增大，纵隔淋巴结增大，与外院2012.09.12片相比未见明显进展。双肺纹理清晰。右肺中叶可见团块影，边界较清晰，大小约为4.23CM×3.89CM，周围可见片状稍高密度影，双肺可见多发结节影，较大者径约0.48CM；右侧肺门增大，所示气管支气管影正常。纵隔内见增大淋巴结影，径约1.03CM。两胸腔无积液征象。心脏大血管未见异常。</t>
+    <t>1.右肺中叶周围型肺癌,与外院2012.09.12化疗前CT片相比未见明显变化;病灶周围片状高密度影,考虑阻塞性肺炎;2.双肺多发转移瘤,较前未见明显变化;3.右侧肺门增大,纵隔淋巴结增大,与外院2012.09.12片相比未见明显进展。双肺纹理清晰。右肺中叶可见团块影,边界较清晰,大小约为4.23CM×3.89CM,周围可见片状稍高密度影,双肺可见多发结节影,较大者径约0.48CM;右侧肺门增大,所示气管支气管影正常。纵隔内见增大淋巴结影,径约1.03CM。两胸腔无积液征象。心脏大血管未见异常。</t>
   </si>
   <si>
     <t>4.23CM×3.89CM</t>
   </si>
   <si>
-    <t>1、右肺恶性肿瘤，右肺多发转移瘤，纵隔多发淋巴结转移，右侧胸膜转移，较前(2016-5-10CT)进展，请结合临床；2、左肺小结节，较前相仿，随诊；3、右侧胸腔积液征象，较前减少，请结合临床。右肺下叶见团块影，长径约为4.1CM×2.5CM，CT值约为45HU，增强后CT值约为52HU、65HU及73HU；右肺另见多发大小不等界清结节影。左肺小结节(31、48)，纵隔内见数个增大的淋巴结，大者短径约为2.1CM。心脏大血管形态自然。右侧胸腔内见弧形积液征象，增强后右胸膜见多个结节状强化。</t>
+    <t>1、右肺恶性肿瘤,右肺多发转移瘤,纵隔多发淋巴结转移,右侧胸膜转移,较前(2016-5-10CT)进展,请结合临床;2、左肺小结节,较前相仿,随诊;3、右侧胸腔积液征象,较前减少,请结合临床。右肺下叶见团块影,长径约为4.1CM×2.5CM,CT值约为45HU,增强后CT值约为52HU、65HU及73HU;右肺另见多发大小不等界清结节影。左肺小结节(31、48),纵隔内见数个增大的淋巴结,大者短径约为2.1CM。心脏大血管形态自然。右侧胸腔内见弧形积液征象,增强后右胸膜见多个结节状强化。</t>
   </si>
   <si>
     <t>4.1CM×2.5CM</t>
@@ -686,16 +686,16 @@
     <t>纵隔多发淋巴结,右侧胸膜</t>
   </si>
   <si>
-    <t>左乳术后，术区结构紊乱，肌肉，密度欠均质，术区未见异常强化灶。左侧腋窝结构紊乱。右乳未见异常。双侧内乳区、双侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰，未见结节及异常强化灶。肝脏密度减低；肝右后叶内见片状密度增高影，其强化方式与同层腹主动脉相似。胆囊充盈可，其内见点状致密影。胰、脾、右侧肾上腺及扫描范围内双肾未见异常。左侧肾上腺见软组织结节灶，短径约1.8CM，增强后轻度强化。骨窗示胸骨及T12胸椎示不规则骨质改变。1.结合临床，左乳癌术后；骨转移较前2015-1-15变化不著2.肝右后叶片状密度增高影，考虑动静脉瘘形成3.胆囊结石4.左侧肾上腺结节灶，较前略增大5.脂肪肝</t>
+    <t>左乳术后,术区结构紊乱,肌肉,密度欠均质,术区未见异常强化灶。左侧腋窝结构紊乱。右乳未见异常。双侧内乳区、双侧腋窝、双侧肺门及纵隔未见增大淋巴结。双肺野清晰,未见结节及异常强化灶。肝脏密度减低;肝右后叶内见片状密度增高影,其强化方式与同层腹主动脉相似。胆囊充盈可,其内见点状致密影。胰、脾、右侧肾上腺及扫描范围内双肾未见异常。左侧肾上腺见软组织结节灶,短径约1.8CM,增强后轻度强化。骨窗示胸骨及T12胸椎示不规则骨质改变。1.结合临床,左乳癌术后;骨转移较前2015-1-15变化不著2.肝右后叶片状密度增高影,考虑动静脉瘘形成3.胆囊结石4.左侧肾上腺结节灶,较前略增大5.脂肪肝</t>
   </si>
   <si>
     <t>T12胸椎</t>
   </si>
   <si>
-    <t>1.结合病史，左乳癌并左侧腋窝淋巴结转移切检术后；术区结节灶，请结合临床2.脑少许缺血变性灶3.副鼻窦炎症左乳切检术后，术区腺体结构紊乱，皮肤不光整且增厚，局部可见一结节样等T1等T2异常信号影，压脂序列及DWI为中心低、边缘高信号，增强扫描可见较显著强化，时间信号曲线为流入型；病灶大小约6MM×8MM。右乳未见异常。左侧腋窝见数个淋巴结，大者短径约14MM。右侧腋窝及双侧内乳区未见肿大淋巴结。双侧额顶叶见少许点状异常信号影，表现为T2WI高或略高信号，压水序列为高信号，DWI为等信号，增强扫描无强化。余脑实质未见异常信号及占位征象。脑室系统及脑沟、裂、池未见异常，中线结构无移位。扫描野内右侧上颌窦及双侧筛窦粘膜增厚。</t>
-  </si>
-  <si>
-    <t>左肺上叶见肿块影，大小约为7.08CM×2.34CM，CT值约53HU。右肺上叶见一径约0.5CM结节。两肺门区未见异常。所示气管支气管影正常。左主动脉弓旁、纵隔及右肺门淋巴结增大，大者短径约3.7CM。内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。1.左肺癌伴左主动脉弓旁、纵隔及右肺门淋巴结转移；2.右肺小结节，随诊；3.左侧肾上腺增粗，建议详查。</t>
+    <t>1.结合病史,左乳癌并左侧腋窝淋巴结转移切检术后;术区结节灶,请结合临床2.脑少许缺血变性灶3.副鼻窦炎症左乳切检术后,术区腺体结构紊乱,皮肤不光整且增厚,局部可见一结节样等T1等T2异常信号影,压脂序列及DWI为中心低、边缘高信号,增强扫描可见较显著强化,时间信号曲线为流入型;病灶大小约6MM×8MM。右乳未见异常。左侧腋窝见数个淋巴结,大者短径约14MM。右侧腋窝及双侧内乳区未见肿大淋巴结。双侧额顶叶见少许点状异常信号影,表现为T2WI高或略高信号,压水序列为高信号,DWI为等信号,增强扫描无强化。余脑实质未见异常信号及占位征象。脑室系统及脑沟、裂、池未见异常,中线结构无移位。扫描野内右侧上颌窦及双侧筛窦粘膜增厚。</t>
+  </si>
+  <si>
+    <t>左肺上叶见肿块影,大小约为7.08CM×2.34CM,CT值约53HU。右肺上叶见一径约0.5CM结节。两肺门区未见异常。所示气管支气管影正常。左主动脉弓旁、纵隔及右肺门淋巴结增大,大者短径约3.7CM。内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。1.左肺癌伴左主动脉弓旁、纵隔及右肺门淋巴结转移;2.右肺小结节,随诊;3.左侧肾上腺增粗,建议详查。</t>
   </si>
   <si>
     <t>7.08CM×2.34CM</t>
@@ -704,19 +704,19 @@
     <t>右肺门淋巴结</t>
   </si>
   <si>
-    <t>右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见肿大淋巴结，大者直径约0.5CM。左肺野示数个结节灶，大者直径约0.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺可见结节灶，直径约0.9CM。胆、胰、脾及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示溶骨性及混合性骨质破坏。1.结合临床，右乳癌术后，纵隔、双肺门淋巴结转移，左肺转移，较前2016-03-10变化不著；左肾上腺转移，较前变化不著；骨转移，较前变化不著2.双肺炎症，基本变化不著3.心包少量积液，变化不著4.肝囊肿</t>
+    <t>右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内主肺动脉窗区、气管隆突下及双肺门可见肿大淋巴结,大者直径约0.5CM。左肺野示数个结节灶,大者直径约0.8CM。双肺野散在斑片状密度增高影。心包腔内可见液性密度影。肝脏实质内可见囊性密度灶。左肾上腺可见结节灶,直径约0.9CM。胆、胰、脾及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。部分胸腰椎及肋骨示溶骨性及混合性骨质破坏。1.结合临床,右乳癌术后,纵隔、双肺门淋巴结转移,左肺转移,较前2016-03-10变化不著;左肾上腺转移,较前变化不著;骨转移,较前变化不著2.双肺炎症,基本变化不著3.心包少量积液,变化不著4.肝囊肿</t>
   </si>
   <si>
     <t>左肺,左肾上腺,骨,双肺门淋巴结</t>
   </si>
   <si>
-    <t>1.结合临床，左乳癌术后改变；右肺结节灶，部分较前(2016-11-28)增大，部分变化不著，考虑转移；胸骨转移并周围软组织增厚，较前变化不著2.左肺下叶炎症，变化不著3.脂肪肝左乳术后缺如，胸肌尚存，术区未见明显增厚及强化。右乳未见明确异常，右侧腋窝内见小淋巴结，大者短径约0.5CM。右肺内见结节灶，大者直径约1.5CM，延支气管走形。左肺下叶胸膜下见斑片状密度增高影。纵隔内未见肿大淋巴结影。扫描野内肝脏实质密度均匀性减低，大小形态可，未见异常密度灶。胸骨骨质示成骨性及溶骨性骨质改变，周围软组织示增厚。</t>
+    <t>1.结合临床,左乳癌术后改变;右肺结节灶,部分较前(2016-11-28)增大,部分变化不著,考虑转移;胸骨转移并周围软组织增厚,较前变化不著2.左肺下叶炎症,变化不著3.脂肪肝左乳术后缺如,胸肌尚存,术区未见明显增厚及强化。右乳未见明确异常,右侧腋窝内见小淋巴结,大者短径约0.5CM。右肺内见结节灶,大者直径约1.5CM,延支气管走形。左肺下叶胸膜下见斑片状密度增高影。纵隔内未见肿大淋巴结影。扫描野内肝脏实质密度均匀性减低,大小形态可,未见异常密度灶。胸骨骨质示成骨性及溶骨性骨质改变,周围软组织示增厚。</t>
   </si>
   <si>
     <t>右肺,胸骨</t>
   </si>
   <si>
-    <t>对比2012-07-06CT：1.右乳腺癌术后复发，右内乳淋巴结、纵隔及两侧颈部多发淋巴结转移，双肺多发转移，胸骨转移，右侧胸壁软组织转移，较前片纵隔肿大淋巴结较前进展；2.双侧胸腔积液伴邻近肺组织膨胀不全，较前进展；3.左室增大；4.肝脏病变，建议详查。所示右侧乳腺缺如，右乳腺区见不规则肿块影，边界欠清，大小4.6CM×2.5CM，右内乳动脉区、纵隔及颈部见多发肿大淋巴结，部分融合。双肺内见多发大小不一类圆形高密度影，较大者位于右肺上叶背段，径约1.68CM。左室增大，大血管管壁未见钙化。双侧胸腔见弧形液性密度影，邻近肺组织膨胀不全。胸骨骨质欠规整。所示层面肝脏见多发低密度影。</t>
+    <t>对比2012-07-06CT:1.右乳腺癌术后复发,右内乳淋巴结、纵隔及两侧颈部多发淋巴结转移,双肺多发转移,胸骨转移,右侧胸壁软组织转移,较前片纵隔肿大淋巴结较前进展;2.双侧胸腔积液伴邻近肺组织膨胀不全,较前进展;3.左室增大;4.肝脏病变,建议详查。所示右侧乳腺缺如,右乳腺区见不规则肿块影,边界欠清,大小4.6CM×2.5CM,右内乳动脉区、纵隔及颈部见多发肿大淋巴结,部分融合。双肺内见多发大小不一类圆形高密度影,较大者位于右肺上叶背段,径约1.68CM。左室增大,大血管管壁未见钙化。双侧胸腔见弧形液性密度影,邻近肺组织膨胀不全。胸骨骨质欠规整。所示层面肝脏见多发低密度影。</t>
   </si>
   <si>
     <t>右乳腺</t>
@@ -725,7 +725,7 @@
     <t>右内乳淋巴结,双肺,胸骨,右侧胸壁软组织</t>
   </si>
   <si>
-    <t>1.左下肺周围型肺癌，双肺多发转移，对比2011-12-21片，左下肺病灶缩小，余变化不大，请结合临床；2.纵隔内、左肺门及右侧腋窝处多发淋巴结肿大，对比前片未见明显改变；3.胸椎及左侧肋骨多发转移，对比前片，数量增多，胸骨、右侧锁骨转移，新发，请结合临床；4.甲状腺占位，腹部改变，请详查。双肺透过度欠均，左下肺可见一肿块影，边界不规则，最大层面3.6CM×3.2CM，CT值约35HU；左肺下叶基底段部分支气管略窄；双肺多发小结节影。两肺门区未见异常。纵隔内、左肺门及右侧腋窝处可见多发增大的淋巴结，大者短径约0.90CM。两胸腔无积液征象。心脏大血管未见异常。第3胸椎左侧横突、第4、5、7、8、10胸椎椎体内可见结节状高密度影，第11胸椎椎体骨质密度不均匀减低，左侧第4、5、7后肋骨质密度增高。甲状腺左叶见类圆形低密度影，边界欠清，大小约为0.9CM，CT值约为25HU。肝右叶多发低密度灶，双侧肾上腺区可见软组织密度影。</t>
+    <t>1.左下肺周围型肺癌,双肺多发转移,对比2011-12-21片,左下肺病灶缩小,余变化不大,请结合临床;2.纵隔内、左肺门及右侧腋窝处多发淋巴结肿大,对比前片未见明显改变;3.胸椎及左侧肋骨多发转移,对比前片,数量增多,胸骨、右侧锁骨转移,新发,请结合临床;4.甲状腺占位,腹部改变,请详查。双肺透过度欠均,左下肺可见一肿块影,边界不规则,最大层面3.6CM×3.2CM,CT值约35HU;左肺下叶基底段部分支气管略窄;双肺多发小结节影。两肺门区未见异常。纵隔内、左肺门及右侧腋窝处可见多发增大的淋巴结,大者短径约0.90CM。两胸腔无积液征象。心脏大血管未见异常。第3胸椎左侧横突、第4、5、7、8、10胸椎椎体内可见结节状高密度影,第11胸椎椎体骨质密度不均匀减低,左侧第4、5、7后肋骨质密度增高。甲状腺左叶见类圆形低密度影,边界欠清,大小约为0.9CM,CT值约为25HU。肝右叶多发低密度灶,双侧肾上腺区可见软组织密度影。</t>
   </si>
   <si>
     <t>左下肺</t>
@@ -737,13 +737,13 @@
     <t>双肺,左侧肋骨,胸骨,右侧锁骨</t>
   </si>
   <si>
-    <t>1.右肺中叶周围型肺癌，纵隔多发淋巴结转移；较2016.6.71相仿；2.原双肺小结节本次显示不清，右肺中叶新见小结节，随诊；3.右肺下叶支气管轻度扩张，小叶间隔增厚，不除外淋巴道转移，请随诊；4.全心增大，请结合临床；5.右侧锁骨上淋巴结增大，胸11椎体右侧高密度影，考虑转移，建议ECT检查。右肺中叶见团块影，边界不清，径约2.5CM×3.4CM，CT值约39HU。右肺水平裂处(33)可见小结节，径约0.35CM。两肺门区未见异常。右肺下叶支气管轻度扩张，管壁稍增厚，多发小叶间隔增粗。纵隔内多发肿大淋巴结，短径约2.5CM，密度较均匀，CT值37HU。两胸腔无积液征象。主动脉壁及冠脉壁见弧形高密度影。全心大，心包稍增厚。右侧锁骨上窝见一淋巴结影，约为2.3CM×2.1CM，CT值32HU。胸11椎体右侧见结节状稍高密度影，直径0.9CM。腰1椎体见片状不规则高密度影。</t>
+    <t>1.右肺中叶周围型肺癌,纵隔多发淋巴结转移;较2016.6.71相仿;2.原双肺小结节本次显示不清,右肺中叶新见小结节,随诊;3.右肺下叶支气管轻度扩张,小叶间隔增厚,不除外淋巴道转移,请随诊;4.全心增大,请结合临床;5.右侧锁骨上淋巴结增大,胸11椎体右侧高密度影,考虑转移,建议ECT检查。右肺中叶见团块影,边界不清,径约2.5CM×3.4CM,CT值约39HU。右肺水平裂处(33)可见小结节,径约0.35CM。两肺门区未见异常。右肺下叶支气管轻度扩张,管壁稍增厚,多发小叶间隔增粗。纵隔内多发肿大淋巴结,短径约2.5CM,密度较均匀,CT值37HU。两胸腔无积液征象。主动脉壁及冠脉壁见弧形高密度影。全心大,心包稍增厚。右侧锁骨上窝见一淋巴结影,约为2.3CM×2.1CM,CT值32HU。胸11椎体右侧见结节状稍高密度影,直径0.9CM。腰1椎体见片状不规则高密度影。</t>
   </si>
   <si>
     <t>淋巴道,胸11椎体</t>
   </si>
   <si>
-    <t>1.右肺下叶周围型肺癌，双侧多发肋骨及胸椎转移征象；2.支气管炎，肺气肿，双肺多发肺大泡；双肺间质性改变；双侧胸腔积液；左侧近膈肌处胸膜增厚钙化；3.左侧第4侧肋、10后肋肋骨折征象，病理性骨折待除外，请结合临床；4.所示左肾囊肿。双肺野透亮度不均，双肺可见多发透亮度增高影，双肺下叶可见斑片状密度增高影，小叶间隔增厚，双肺并见条索影。右肺下叶可见高密度团块影，较大截面大小约为2.6CM×2.1CM，平扫CT值约为46HU，周围可见毛刺影，可见血管集束征，两肺门区未见异常。所示肺内血管支气管束影增粗、增多，部分走行迂曲、紊乱。纵隔内可见多发淋巴结影，较大者短径约为1.2CM。两侧胸腔积液征象。左侧近膈肌处胸膜增厚钙化改变，部分大血管管壁及冠脉走行区可见致密影，心脏形态饱满。双侧部分肋骨及胸椎形态不规则，骨质破坏改变，局部可见软组织样异常密度影，左侧第4侧肋、10后肋局部骨皮质不连续，周围软组织稍肿胀，并见骨痂形成。所示左肾上极可见囊状液性低密度影。</t>
+    <t>1.右肺下叶周围型肺癌,双侧多发肋骨及胸椎转移征象;2.支气管炎,肺气肿,双肺多发肺大泡;双肺间质性改变;双侧胸腔积液;左侧近膈肌处胸膜增厚钙化;3.左侧第4侧肋、10后肋肋骨折征象,病理性骨折待除外,请结合临床;4.所示左肾囊肿。双肺野透亮度不均,双肺可见多发透亮度增高影,双肺下叶可见斑片状密度增高影,小叶间隔增厚,双肺并见条索影。右肺下叶可见高密度团块影,较大截面大小约为2.6CM×2.1CM,平扫CT值约为46HU,周围可见毛刺影,可见血管集束征,两肺门区未见异常。所示肺内血管支气管束影增粗、增多,部分走行迂曲、紊乱。纵隔内可见多发淋巴结影,较大者短径约为1.2CM。两侧胸腔积液征象。左侧近膈肌处胸膜增厚钙化改变,部分大血管管壁及冠脉走行区可见致密影,心脏形态饱满。双侧部分肋骨及胸椎形态不规则,骨质破坏改变,局部可见软组织样异常密度影,左侧第4侧肋、10后肋局部骨皮质不连续,周围软组织稍肿胀,并见骨痂形成。所示左肾上极可见囊状液性低密度影。</t>
   </si>
   <si>
     <t>2.6CM×2.1CM</t>
@@ -752,7 +752,7 @@
     <t>肋骨,胸椎</t>
   </si>
   <si>
-    <t>右肺下叶见一不规则软组织密度结节灶，边缘分叶，截面积约2.5CM×2.3CM；增强扫描呈不均匀强化。另于右肺下叶胸膜下见类结节灶。双肺透光度减低，右肺见少许片絮状密度增高影。右肺门、纵隔内2R、2L、4R见多发肿大淋巴结，大者位于右肺门，短径约1.8CM。肝内胆管局部示扩张，肝内见多发低密度灶，边界清，未见强化。双肾形态可，强化欠均匀，可见片状低密度影。胰腺周围见多发小囊性结节，边缘较清晰，未见强化。腹腔胃小弯侧见一短径约0.7CM类结节，边缘毛糙。右侧颞叶见一长径约0.8CM环形强化灶。脑室脑池未见扩张。中线结构居中。部分椎体内可见低密度影，其内可见颗粒状高密度影。1.结合临床，右肺下叶癌，较前2017-2-4增大；右肺门及纵隔淋巴结转移，部分进展，部分变化不著；考虑脑转移，请结合MR2.右肺下叶胸膜下类结节灶，不易比较，建议观察3.慢性肺炎，局部略加重4.肝内胆管轻度扩张，变化不著5.双肾密度减低并片状低密度影，变化不著6.部分椎体低密度影，考虑血管瘤。7.腹腔类结节，不除外淋巴结，建议观察；胰腺周围囊性结节，建议观察并结合临床</t>
+    <t>右肺下叶见一不规则软组织密度结节灶,边缘分叶,截面积约2.5CM×2.3CM;增强扫描呈不均匀强化。另于右肺下叶胸膜下见类结节灶。双肺透光度减低,右肺见少许片絮状密度增高影。右肺门、纵隔内2R、2L、4R见多发肿大淋巴结,大者位于右肺门,短径约1.8CM。肝内胆管局部示扩张,肝内见多发低密度灶,边界清,未见强化。双肾形态可,强化欠均匀,可见片状低密度影。胰腺周围见多发小囊性结节,边缘较清晰,未见强化。腹腔胃小弯侧见一短径约0.7CM类结节,边缘毛糙。右侧颞叶见一长径约0.8CM环形强化灶。脑室脑池未见扩张。中线结构居中。部分椎体内可见低密度影,其内可见颗粒状高密度影。1.结合临床,右肺下叶癌,较前2017-2-4增大;右肺门及纵隔淋巴结转移,部分进展,部分变化不著;考虑脑转移,请结合MR2.右肺下叶胸膜下类结节灶,不易比较,建议观察3.慢性肺炎,局部略加重4.肝内胆管轻度扩张,变化不著5.双肾密度减低并片状低密度影,变化不著6.部分椎体低密度影,考虑血管瘤。7.腹腔类结节,不除外淋巴结,建议观察;胰腺周围囊性结节,建议观察并结合临床</t>
   </si>
   <si>
     <t>2.5CM×2.3CM</t>
@@ -761,7 +761,7 @@
     <t>纵隔淋巴结,脑</t>
   </si>
   <si>
-    <t>1.右乳癌术后，右腋顶部、右颈根部、锁上、左腋窝、纵隔及右肺门淋巴结肿大，考虑转移；左肺门及双上颈部淋巴结肿大；双肺转移；肝转移2.肝脏小囊肿；右肾小囊肿3.双侧上颌窦炎症4.颅脑扫描未见明显异常5.腰椎退行性变右乳术后缺如，术区未见异常增厚及强化。左乳未见异常。右腋顶部、右颈根部、锁上、左腋窝、纵隔内血管前间隙、气管前腔静脉后、主肺动脉窗区及双肺门示多发肿大淋巴结，大者短径约1.2CM。双肺示多发结节及肿块，大者直径约3.0CM，可见强化。肝左右叶交界处示一低密度结节灶，截面约1.3CM×2.3CM，边缘模糊，可见边缘强化。余肝内可见小的囊性密度灶。胆胰脾肾上腺及左肾未见异常。右肾示小囊肿。腹腔腹膜后未见明显肿大淋巴结。双侧上颌窦内示液体密度影。甲状腺显示可，咽喉壁不厚。双颈上深示数个略大淋巴结，大者短径约0.7CM。脑实质密度均匀腰椎椎体前缘可见棘状突起。诸骨质未见明显破坏征象。</t>
+    <t>1.右乳癌术后,右腋顶部、右颈根部、锁上、左腋窝、纵隔及右肺门淋巴结肿大,考虑转移;左肺门及双上颈部淋巴结肿大;双肺转移;肝转移2.肝脏小囊肿;右肾小囊肿3.双侧上颌窦炎症4.颅脑扫描未见明显异常5.腰椎退行性变右乳术后缺如,术区未见异常增厚及强化。左乳未见异常。右腋顶部、右颈根部、锁上、左腋窝、纵隔内血管前间隙、气管前腔静脉后、主肺动脉窗区及双肺门示多发肿大淋巴结,大者短径约1.2CM。双肺示多发结节及肿块,大者直径约3.0CM,可见强化。肝左右叶交界处示一低密度结节灶,截面约1.3CM×2.3CM,边缘模糊,可见边缘强化。余肝内可见小的囊性密度灶。胆胰脾肾上腺及左肾未见异常。右肾示小囊肿。腹腔腹膜后未见明显肿大淋巴结。双侧上颌窦内示液体密度影。甲状腺显示可,咽喉壁不厚。双颈上深示数个略大淋巴结,大者短径约0.7CM。脑实质密度均匀腰椎椎体前缘可见棘状突起。诸骨质未见明显破坏征象。</t>
   </si>
   <si>
     <t>右乳,右腋顶部、右颈根部、锁上、左腋窝、纵隔及右肺门淋巴结</t>
@@ -770,25 +770,25 @@
     <t>双肺,肝</t>
   </si>
   <si>
-    <t>结合临床，左乳癌术后，肝内低密度灶，转移可能性大，请结合前片左乳术后，术区未见增厚及异常强化征象。左腋窝结构紊乱。右乳及右腋窝未见异常。纵隔内未见肿大淋巴结。双肺野清晰。扫描野肝实质内可见低密度结节灶，大小约1.7CM×2.3CM，边缘欠清，轻度强化。</t>
+    <t>结合临床,左乳癌术后,肝内低密度灶,转移可能性大,请结合前片左乳术后,术区未见增厚及异常强化征象。左腋窝结构紊乱。右乳及右腋窝未见异常。纵隔内未见肿大淋巴结。双肺野清晰。扫描野肝实质内可见低密度结节灶,大小约1.7CM×2.3CM,边缘欠清,轻度强化。</t>
   </si>
   <si>
     <t>肝</t>
   </si>
   <si>
-    <t>1.右肺下叶占位，考虑周围型肺癌，较前CT(2016-12-21)病灶增大；双肺多发粟粒灶，转移可能，较前相仿；2.肺气肿；双肺多发条索灶；5.心脏增大，心包少量积液，积液量较前略增多；6.双侧多发肋骨骨质密度欠规整。右肺下叶可见椭圆形高密度团块影，大小约3.31CM×4.90CM，CT值27HU，浅分叶，密度尚均，边界较清，病灶与邻近胸膜宽基底相连。双肺可见多发粟粒影。双肺可见多发条索影。双肺可见多发小片状透亮影。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。两胸腔未见积液征象。左肺尖胸膜肥厚。左房、右房增大，主动脉及冠状动脉见钙化影，心包可见少量液体密度影。双侧多根肋骨骨质形态欠规整。</t>
+    <t>1.右肺下叶占位,考虑周围型肺癌,较前CT(2016-12-21)病灶增大;双肺多发粟粒灶,转移可能,较前相仿;2.肺气肿;双肺多发条索灶;5.心脏增大,心包少量积液,积液量较前略增多;6.双侧多发肋骨骨质密度欠规整。右肺下叶可见椭圆形高密度团块影,大小约3.31CM×4.90CM,CT值27HU,浅分叶,密度尚均,边界较清,病灶与邻近胸膜宽基底相连。双肺可见多发粟粒影。双肺可见多发条索影。双肺可见多发小片状透亮影。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。两胸腔未见积液征象。左肺尖胸膜肥厚。左房、右房增大,主动脉及冠状动脉见钙化影,心包可见少量液体密度影。双侧多根肋骨骨质形态欠规整。</t>
   </si>
   <si>
     <t>3.31CM×4.90CM</t>
   </si>
   <si>
-    <t>左肺下叶背段可见肿块影，边界模糊，径约7.03CM×5.96CM，CT值约19-37HU，左肺下叶部分支气管截断，左侧肺门可见增大淋巴结，左下肺动脉受侵，侵及胸膜；双肺下叶胸膜下多发类圆形小结节影，大者径约1.37CM×1.59CM；双肺小叶间隔增厚，近胸膜处多发囊状无肺纹理透亮区，纵膈内可见增大淋巴结，大者径约1.62CM×1.08CM。心脏大血管未见异常。1.左肺下叶中央型肺癌，左下肺动静脉受侵可能，纵隔及左肺门淋巴结转移；2.双肺下叶多发类圆形小结节，考虑转移瘤；3.双肺弥漫性间质纤维化。</t>
+    <t>左肺下叶背段可见肿块影,边界模糊,径约7.03CM×5.96CM,CT值约19-37HU,左肺下叶部分支气管截断,左侧肺门可见增大淋巴结,左下肺动脉受侵,侵及胸膜;双肺下叶胸膜下多发类圆形小结节影,大者径约1.37CM×1.59CM;双肺小叶间隔增厚,近胸膜处多发囊状无肺纹理透亮区,纵膈内可见增大淋巴结,大者径约1.62CM×1.08CM。心脏大血管未见异常。1.左肺下叶中央型肺癌,左下肺动静脉受侵可能,纵隔及左肺门淋巴结转移;2.双肺下叶多发类圆形小结节,考虑转移瘤;3.双肺弥漫性间质纤维化。</t>
   </si>
   <si>
     <t>7.03CM×5.96CM</t>
   </si>
   <si>
-    <t>左肺上叶纵隔旁可见软组织密度肿块影，大小约为3.3CM×2.4CM，CT值约为37HU，增强扫描三期CT值分别为31-59HU、39-79HU、41-71HU，邻近胸膜不规则肥厚；左侧锁骨上窝可见肿大淋巴结影，大小约为1.6CM×1.2CM，增强扫描可见强化。主肺动脉窗淋巴结轻度增大。左肺下叶(53)、右肺上叶(18、26、31)、右肺中叶(37)可见多个高密度结节影，大者直径约为0.6CM。前纵隔可见小结节；两肺野可见数个高密度小斑片影，边缘模糊。两胸腔无积液征象；心脏大血管未见异常。1.左肺上叶占位，首先考虑肺癌，合并左侧锁骨上窝淋巴结转移，主肺动脉窗淋巴结轻度增大，双肺多发小结节灶，请结合临床；2.前纵隔小结节。</t>
+    <t>左肺上叶纵隔旁可见软组织密度肿块影,大小约为3.3CM×2.4CM,CT值约为37HU,增强扫描三期CT值分别为31-59HU、39-79HU、41-71HU,邻近胸膜不规则肥厚;左侧锁骨上窝可见肿大淋巴结影,大小约为1.6CM×1.2CM,增强扫描可见强化。主肺动脉窗淋巴结轻度增大。左肺下叶(53)、右肺上叶(18、26、31)、右肺中叶(37)可见多个高密度结节影,大者直径约为0.6CM。前纵隔可见小结节;两肺野可见数个高密度小斑片影,边缘模糊。两胸腔无积液征象;心脏大血管未见异常。1.左肺上叶占位,首先考虑肺癌,合并左侧锁骨上窝淋巴结转移,主肺动脉窗淋巴结轻度增大,双肺多发小结节灶,请结合临床;2.前纵隔小结节。</t>
   </si>
   <si>
     <t>左肺上叶纵隔旁</t>
@@ -800,7 +800,7 @@
     <t>左侧锁骨上窝淋巴结</t>
   </si>
   <si>
-    <t>右肺上叶占位，考虑周围型肺癌，伴右肺尖胸膜下、右侧斜裂胸膜转移，纵隔内多发小淋巴结，请结合临床。右肺上叶前段支气管局部分支管腔略窄，于纵隔旁见一类圆形肿块影，最大截面积约为2.90CM×2.98CM，密度均匀，CT值约为31HU，三期增强CT值分别为68、98、87HU，强化明显。右肺尖胸膜下、右侧斜裂可见多个类圆形结节影，边界清楚，大者径约1.0CM，均匀明显强化。所示气管支气管影通畅。纵隔内见多发淋巴结，大者短径0.4CM，中度均匀强化。两胸腔可见少量液体密度影。心脏大血管未见异常。</t>
+    <t>右肺上叶占位,考虑周围型肺癌,伴右肺尖胸膜下、右侧斜裂胸膜转移,纵隔内多发小淋巴结,请结合临床。右肺上叶前段支气管局部分支管腔略窄,于纵隔旁见一类圆形肿块影,最大截面积约为2.90CM×2.98CM,密度均匀,CT值约为31HU,三期增强CT值分别为68、98、87HU,强化明显。右肺尖胸膜下、右侧斜裂可见多个类圆形结节影,边界清楚,大者径约1.0CM,均匀明显强化。所示气管支气管影通畅。纵隔内见多发淋巴结,大者短径0.4CM,中度均匀强化。两胸腔可见少量液体密度影。心脏大血管未见异常。</t>
   </si>
   <si>
     <t>2.90CM×2.98CM</t>
@@ -809,31 +809,31 @@
     <t>右肺尖胸膜下,右侧斜裂胸膜</t>
   </si>
   <si>
-    <t>1.左肺上叶肺癌并左肺门及纵隔淋巴结转移，对比2013-04-09片未见明显变化；2.右肺上叶小结节，对比2013-04-09片未见明显变化；3.双肺纵隔旁及胸膜下放射性肺炎，对比2013-04-09片炎症加重；4.双侧胸膜略厚，心包增厚。左肺上叶近纵隔旁见团片状软组织影，最大截面大小约为7.0CM×2.4CM，CT值约35HU；右肺上叶后段可见一结节，径约0.5CM；双肺纵隔旁及胸膜下见多个条索状及斑片状高密度影。腔静脉间隙、主动脉弓旁、气管隆突上纵隔及左肺门多发结节状软组织影，密度欠均匀，见小斑片状高密度影，部分融合。双侧胸膜略增厚。心影不大，大血管壁可见钙化影，心包增厚。</t>
+    <t>1.左肺上叶肺癌并左肺门及纵隔淋巴结转移,对比2013-04-09片未见明显变化;2.右肺上叶小结节,对比2013-04-09片未见明显变化;3.双肺纵隔旁及胸膜下放射性肺炎,对比2013-04-09片炎症加重;4.双侧胸膜略厚,心包增厚。左肺上叶近纵隔旁见团片状软组织影,最大截面大小约为7.0CM×2.4CM,CT值约35HU;右肺上叶后段可见一结节,径约0.5CM;双肺纵隔旁及胸膜下见多个条索状及斑片状高密度影。腔静脉间隙、主动脉弓旁、气管隆突上纵隔及左肺门多发结节状软组织影,密度欠均匀,见小斑片状高密度影,部分融合。双侧胸膜略增厚。心影不大,大血管壁可见钙化影,心包增厚。</t>
   </si>
   <si>
     <t>7.0CM×2.4CM</t>
   </si>
   <si>
-    <t>左乳外侧局部结构紊乱，未见具体结节及异常强化灶。左肺下叶见斑片影。左肺下叶胸膜下见一直径不足0.5CM小类结节灶。双侧腋窝见短径不足1.0CM小淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝、胆、胰、脾、双侧肾上腺及双肾未见异常。腹腔及腹膜后、膈上见短径不足0.5CM小淋巴结。宫颈体积稍大，密度不均，增强后强化不均。宫体体积不规则增大，见多发软组织结节灶，增强后呈高低不均强化。左侧附件略饱满。膀胱充盈良好，壁未见增厚。盆腔内髂血管旁、骶前见短径不足0.5CM小淋巴结。多发椎体示密度不均。左侧坐骨局限性骨质密度减低。1.结合临床，左乳癌，宫颈转移，骨转移2.左肺下叶类结节灶，左肺炎症3.子宫肌瘤4.左侧附件略饱满5.双侧腋窝、腹腔腹膜后、盆腔小淋巴结以上请结合临床</t>
+    <t>左乳外侧局部结构紊乱,未见具体结节及异常强化灶。左肺下叶见斑片影。左肺下叶胸膜下见一直径不足0.5CM小类结节灶。双侧腋窝见短径不足1.0CM小淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。肝、胆、胰、脾、双侧肾上腺及双肾未见异常。腹腔及腹膜后、膈上见短径不足0.5CM小淋巴结。宫颈体积稍大,密度不均,增强后强化不均。宫体体积不规则增大,见多发软组织结节灶,增强后呈高低不均强化。左侧附件略饱满。膀胱充盈良好,壁未见增厚。盆腔内髂血管旁、骶前见短径不足0.5CM小淋巴结。多发椎体示密度不均。左侧坐骨局限性骨质密度减低。1.结合临床,左乳癌,宫颈转移,骨转移2.左肺下叶类结节灶,左肺炎症3.子宫肌瘤4.左侧附件略饱满5.双侧腋窝、腹腔腹膜后、盆腔小淋巴结以上请结合临床</t>
   </si>
   <si>
     <t>宫颈</t>
   </si>
   <si>
-    <t>所示右乳外上象限可见肿块影，分叶状，CT值约22HU，右侧乳腺皮肤增厚，乳头内陷；右侧腋窝可见多发肿大淋巴结，大者大小约3.57CM×3.12CM。右肺尖(44)、右肺中叶(29)、左肺斜裂旁(40)可见多发结节影，大者位于右肺尖，长径约1.31CM；双肺可见索条影。双肺支气管血管束增强。两肺门区未见异常。纵隔未见肿大淋巴结。心脏不大，主动脉、冠状动脉走行区局部可见条状致密影。所示肝内可见多发团片状稍低密度影。1.右乳外上象限肿块-乳腺癌?右侧腋窝淋巴结转移；2.双肺多发小结节，随诊；3.肝内多发低密度灶，详查；以上征象较201-09-28未见明显变化。</t>
+    <t>所示右乳外上象限可见肿块影,分叶状,CT值约22HU,右侧乳腺皮肤增厚,乳头内陷;右侧腋窝可见多发肿大淋巴结,大者大小约3.57CM×3.12CM。右肺尖(44)、右肺中叶(29)、左肺斜裂旁(40)可见多发结节影,大者位于右肺尖,长径约1.31CM;双肺可见索条影。双肺支气管血管束增强。两肺门区未见异常。纵隔未见肿大淋巴结。心脏不大,主动脉、冠状动脉走行区局部可见条状致密影。所示肝内可见多发团片状稍低密度影。1.右乳外上象限肿块-乳腺癌?右侧腋窝淋巴结转移;2.双肺多发小结节,随诊;3.肝内多发低密度灶,详查;以上征象较201-09-28未见明显变化。</t>
   </si>
   <si>
     <t>右肺,肋骨</t>
   </si>
   <si>
-    <t>1.右肺中叶周围型肺癌，纵隔多发淋巴结转移；2.右肺下叶背段结节，考虑转移瘤可能，请随诊；3.双肺小结节，随诊；4.右肺下叶支气管扩张；5.全心大，心包少量积液。右肺中叶见团块影，边界不清，径约2.5CM×3.4CM，CT值约39HU，增强三期分别为54、58、67HU。右肺尖(10)、右肺上叶(28)、下叶后基底段(33)、左肺上叶舌段(34)、下叶基底段(35)小结节影，径约0.3CM。右肺下叶背段(29)结节影，径约1.0CM。两肺门区未见异常。右肺下叶支气管轻度扩张，管壁稍增厚。纵隔内多发肿大淋巴结，短径约2.5CM，增强均匀强化。两胸腔无积液征象。主动脉壁及冠脉壁见弧形高密度影。全心大，心包稍增厚。</t>
+    <t>1.右肺中叶周围型肺癌,纵隔多发淋巴结转移;2.右肺下叶背段结节,考虑转移瘤可能,请随诊;3.双肺小结节,随诊;4.右肺下叶支气管扩张;5.全心大,心包少量积液。右肺中叶见团块影,边界不清,径约2.5CM×3.4CM,CT值约39HU,增强三期分别为54、58、67HU。右肺尖(10)、右肺上叶(28)、下叶后基底段(33)、左肺上叶舌段(34)、下叶基底段(35)小结节影,径约0.3CM。右肺下叶背段(29)结节影,径约1.0CM。两肺门区未见异常。右肺下叶支气管轻度扩张,管壁稍增厚。纵隔内多发肿大淋巴结,短径约2.5CM,增强均匀强化。两胸腔无积液征象。主动脉壁及冠脉壁见弧形高密度影。全心大,心包稍增厚。</t>
   </si>
   <si>
     <t>纵隔多发淋巴结,右肺下叶背段</t>
   </si>
   <si>
-    <t>1.右肺下叶周围型肺癌，右肺门及纵隔淋巴结大，考虑转移可能性大，随诊；2.右肺上叶及左肺下叶炎症；3.一上位胸椎结节高密度影，随诊除外转移。双肺纹理增强，右肺上叶及左肺下叶可见斑片模糊影，右肺下叶可见团块影，分叶状，大小约3.5CM×4.9CM，CT值约31HU，增强后明显强化，各期CT值依次为41HU、37HU、32HU。右肺门及纵隔内可见肿大淋巴结，心影不大。双侧胸腔内未见明显积液征象。一上位胸椎可见结节高密度影。</t>
+    <t>1.右肺下叶周围型肺癌,右肺门及纵隔淋巴结大,考虑转移可能性大,随诊;2.右肺上叶及左肺下叶炎症;3.一上位胸椎结节高密度影,随诊除外转移。双肺纹理增强,右肺上叶及左肺下叶可见斑片模糊影,右肺下叶可见团块影,分叶状,大小约3.5CM×4.9CM,CT值约31HU,增强后明显强化,各期CT值依次为41HU、37HU、32HU。右肺门及纵隔内可见肿大淋巴结,心影不大。双侧胸腔内未见明显积液征象。一上位胸椎可见结节高密度影。</t>
   </si>
   <si>
     <t>3.5CM×4.9CM</t>
@@ -842,7 +842,7 @@
     <t>右肺门及纵隔淋巴结,上位胸椎</t>
   </si>
   <si>
-    <t>1.右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移，较2014-10-13相仿；2.右肺下叶磨玻璃结节，较前相仿；3.所示多发骨转移征象，右侧第10后肋病理性骨折，左侧第10后肋形态欠规整，胸2椎体内及胸骨柄内病灶较前部分范围略增大。右肺下叶背段见类圆形肿块影，约2.14CM×1.82CM，边缘不规整，可见多发毛刺影，并见血管影进入，牵拉邻近胸膜，其CT值约35HU。右肺下叶见斑片影(S39)。右肺门区及纵隔内可见多发肿大淋巴结影，大者短径约2.18CM，双侧胸腔未见积液征象。心脏大血管未见异常。双侧第10后肋、胸骨柄及胸骨体内可见高密度影，胸2椎体内可见结节状高密度影，胸2附件骨质可见溶骨性破坏区。</t>
+    <t>1.右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移,较2014-10-13相仿;2.右肺下叶磨玻璃结节,较前相仿;3.所示多发骨转移征象,右侧第10后肋病理性骨折,左侧第10后肋形态欠规整,胸2椎体内及胸骨柄内病灶较前部分范围略增大。右肺下叶背段见类圆形肿块影,约2.14CM×1.82CM,边缘不规整,可见多发毛刺影,并见血管影进入,牵拉邻近胸膜,其CT值约35HU。右肺下叶见斑片影(S39)。右肺门区及纵隔内可见多发肿大淋巴结影,大者短径约2.18CM,双侧胸腔未见积液征象。心脏大血管未见异常。双侧第10后肋、胸骨柄及胸骨体内可见高密度影,胸2椎体内可见结节状高密度影,胸2附件骨质可见溶骨性破坏区。</t>
   </si>
   <si>
     <t>右肺下叶背段,右肺下叶背段</t>
@@ -854,10 +854,10 @@
     <t>右肺门,纵隔淋巴结,骨</t>
   </si>
   <si>
-    <t>右乳术后缺如，术区未见异常密度灶。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门及纵隔未见肿大淋巴结。左侧内乳区见小淋巴结，短径不足0.5CM。右肺中叶见一结节灶(图3-28)，直径约0.3CM，密度较低。右肺下叶见少许斑片影，局部似呈类结节状，邻近胸膜略增厚。扫描野内肝实质密度均匀减低。肝内见斑点状钙化灶。胸骨及部分胸椎示骨质破坏。鼻咽、口咽、喉及下咽未见异常。左侧锁骨上及左侧颈后三角区示数个小结节灶，大者短径约1.0CM，密度较低。余双侧颈动脉鞘区见短径不足0.5CM小淋巴结。左侧上颌窦粘膜略增厚。1.结合临床，右乳癌术后改变；骨转移，较前(2015-5-19)变化不著；左锁骨上淋巴结肿大，较前略饱满2.右肺中叶结节灶，略缩小；右肺下叶炎症伴类结节灶，建议观察3.脂肪肝，肝内钙化灶4.左侧副鼻窦炎，变化不著</t>
-  </si>
-  <si>
-    <t>右肺尖可见团片影，边界毛糙，可见多发毛刺样影牵拉胸膜，最大层面约4.6CM×3.8CM，平扫CT值约35-45HU，周围可见多发片絮样模糊影；右肺上叶后段可见小粟粒影(S24)；右肺中叶外侧段、即左肺上叶上舌段(S29、32)、左肺下叶后基底段(S40、43)可见小结节样淡片影，大者径长约0.9CM，边缘模糊；左肺下叶外基底段(S45)可能小空泡样影，径长约0.9CM，周围可见少许高密度影；左肺下叶背段可见空泡影，边界欠清，径长约1.0CM。纵隔内淋巴结肿大，边界欠清，大者短径约1.1CM。主动脉可见少许钙化影。1.右肺尖占位，考虑肺癌，纵隔淋巴结转移；2.双肺多发结节、左肺下叶空泡(两枚)，随诊；以上征象较前(2013-12-13)相仿。</t>
+    <t>右乳术后缺如,术区未见异常密度灶。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门及纵隔未见肿大淋巴结。左侧内乳区见小淋巴结,短径不足0.5CM。右肺中叶见一结节灶(图3-28),直径约0.3CM,密度较低。右肺下叶见少许斑片影,局部似呈类结节状,邻近胸膜略增厚。扫描野内肝实质密度均匀减低。肝内见斑点状钙化灶。胸骨及部分胸椎示骨质破坏。鼻咽、口咽、喉及下咽未见异常。左侧锁骨上及左侧颈后三角区示数个小结节灶,大者短径约1.0CM,密度较低。余双侧颈动脉鞘区见短径不足0.5CM小淋巴结。左侧上颌窦粘膜略增厚。1.结合临床,右乳癌术后改变;骨转移,较前(2015-5-19)变化不著;左锁骨上淋巴结肿大,较前略饱满2.右肺中叶结节灶,略缩小;右肺下叶炎症伴类结节灶,建议观察3.脂肪肝,肝内钙化灶4.左侧副鼻窦炎,变化不著</t>
+  </si>
+  <si>
+    <t>右肺尖可见团片影,边界毛糙,可见多发毛刺样影牵拉胸膜,最大层面约4.6CM×3.8CM,平扫CT值约35-45HU,周围可见多发片絮样模糊影;右肺上叶后段可见小粟粒影(S24);右肺中叶外侧段、即左肺上叶上舌段(S29、32)、左肺下叶后基底段(S40、43)可见小结节样淡片影,大者径长约0.9CM,边缘模糊;左肺下叶外基底段(S45)可能小空泡样影,径长约0.9CM,周围可见少许高密度影;左肺下叶背段可见空泡影,边界欠清,径长约1.0CM。纵隔内淋巴结肿大,边界欠清,大者短径约1.1CM。主动脉可见少许钙化影。1.右肺尖占位,考虑肺癌,纵隔淋巴结转移;2.双肺多发结节、左肺下叶空泡(两枚),随诊;以上征象较前(2013-12-13)相仿。</t>
   </si>
   <si>
     <t>右肺尖</t>
@@ -866,7 +866,7 @@
     <t>4.6CM×3.8CM</t>
   </si>
   <si>
-    <t>左侧乳腺肿胀，局部见一较大软组织信号肿块，大小约5.4CM×3.0CM，边缘分叶毛糙，与腺体分界不清，并累及相邻胸肌；表现为T1WI等低信号，T2WI略高信号，压脂序列及DWI呈高信号，增强扫描可见明显强化，并可见左侧乳腺皮肤增厚，乳头内陷，增厚的皮肤内可见强化结节灶。左侧腋窝多发小淋巴结，大者短径约0.6CM。右侧乳腺内可见多发类结节状及斑片状异常信号，信号略示不均，表现平扫未见异常信号，DWI呈略高信号，增强扫描可见强化，部分边界清，部分模糊。右侧腋窝见数个小淋巴结，大者直径约0.5CM。胸骨局部及部分胸椎椎体内可见斑片状异常信号，1.左乳癌伴局部皮肤破溃(BI-RADS5级)；局部皮肤结节灶，考虑转移；左侧腋窝淋巴结肿大2.右侧乳腺结节灶(BI-RADS4级)，建议穿刺活检；右侧腋窝小淋巴结</t>
+    <t>左侧乳腺肿胀,局部见一较大软组织信号肿块,大小约5.4CM×3.0CM,边缘分叶毛糙,与腺体分界不清,并累及相邻胸肌;表现为T1WI等低信号,T2WI略高信号,压脂序列及DWI呈高信号,增强扫描可见明显强化,并可见左侧乳腺皮肤增厚,乳头内陷,增厚的皮肤内可见强化结节灶。左侧腋窝多发小淋巴结,大者短径约0.6CM。右侧乳腺内可见多发类结节状及斑片状异常信号,信号略示不均,表现平扫未见异常信号,DWI呈略高信号,增强扫描可见强化,部分边界清,部分模糊。右侧腋窝见数个小淋巴结,大者直径约0.5CM。胸骨局部及部分胸椎椎体内可见斑片状异常信号,1.左乳癌伴局部皮肤破溃(BI-RADS5级);局部皮肤结节灶,考虑转移;左侧腋窝淋巴结肿大2.右侧乳腺结节灶(BI-RADS4级),建议穿刺活检;右侧腋窝小淋巴结</t>
   </si>
   <si>
     <t>5.4CM×3.0CM</t>
@@ -875,19 +875,19 @@
     <t>局部皮肤</t>
   </si>
   <si>
-    <t>左乳外侧局部结构紊乱，局部可见小斑片状强化影。左肺下叶见索条影。左肺下叶胸膜下见一直径不足0.5CM小类结节灶。双侧腋窝、胸肌间及左锁上见短径不足1.0CM小淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。左侧肾上腺饱满，肝、胆、胰、脾、右侧肾上腺及双肾未见异常。腹腔及腹膜后、膈上见大者短径约0.5CM小淋巴结。宫颈体积稍大，强化不均。宫体体积不规则增大，见多发软组织密度灶，增强后呈不均匀强化。双侧附件饱满。膀胱充盈良好，壁未见增厚。盆腔内髂血管旁、骶前见短径不足0.5CM小淋巴结。多发椎骨及胸骨密度不均，部分周围示软组织密度影，以胸椎周围为著，与邻近结构分界不清。双侧坐骨局限性骨质密度减低。右侧部分肋骨骨质中断。1.结合临床，左乳癌术后，术区小片影，较前(2016-6-14)变化不著；宫颈转移治疗后，变化不著；骨转移，较前胸椎周围软组织密度增大，余基本变化不著2.左肺下叶类结节灶，变化不著；左肺纤维灶3.考虑子宫肌瘤，变化不著4.双侧附件略饱满，变化不著5.双侧腋窝、左锁上、腹腔、腹膜后及盆腔小淋巴结，变化不著6.双侧坐骨局限性骨质密度减低，右侧部分肋骨骨折，均变化不著。</t>
-  </si>
-  <si>
-    <t>右乳术后，术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内未见肿大淋巴结。前纵隔胸腺区可见一低密度灶，直径约1.0CM，边界清，强化不著。右肺上叶可见两个结节灶，大者直径约2.5CM，边缘尚清晰，增强扫描可见强化。右侧斜裂胸膜增厚。肝脏密度减低，实质内可见两个结节灶，直径约1.5CM，动脉期边缘结节样强化，门脉期及延迟扫描对比剂向心性充填。另第二肝门区略可见低密度灶，直径约1.0CM，边缘尚清。另肝内见一点状致密影。胆、胰、脾及双肾未见异常。腹膜后未见肿大淋巴结。1.结合临床，右乳癌术后；右肺结节灶，考虑转移，较前(2014-04-23)片增大。3.右侧叶间胸膜增厚4.前纵隔胸腺区低密度灶，变化不著5.肝内低密度灶，较前变化不著6.肝血管瘤7.脂肪肝；肝内钙化灶</t>
-  </si>
-  <si>
-    <t>1.右乳癌术后，右腋顶部、右颈根部、锁上、左腋窝、纵隔及双肺门淋巴结转移，部分较前进展，部分较前变化不著；双肺转移，较前进展；肝转移，较前好转2.肝脏小囊肿；右肾小囊肿3.左乳异常强化灶，较前略示明显，建议观察。右乳术后缺如，术区未见异常增厚及强化。左乳腺体内可见点片状异常强化区。右腋顶部、右颈根部、锁上、左腋窝、纵隔内血管前间隙、气管前腔静脉后、主肺动脉窗区及双肺门示多发肿大淋巴结，大者短径约1.2CM。双肺示多发结节及肿块，大者直径约4.5CM，可见强化。左肺下叶可见斑片状密度增高影。肝左右叶交界处示一低密度结节灶，直径约0.8CM，边缘模糊，可见边缘强化。余肝内可见小的囊性密度灶。胆胰脾肾上腺及左肾未见异常。右肾示小囊肿。腹腔腹膜后未见明显肿大淋巴结。骨窗未见明显破坏征象。</t>
+    <t>左乳外侧局部结构紊乱,局部可见小斑片状强化影。左肺下叶见索条影。左肺下叶胸膜下见一直径不足0.5CM小类结节灶。双侧腋窝、胸肌间及左锁上见短径不足1.0CM小淋巴结。双侧胸膜未见增厚。双侧胸腔未见积液征象。左侧肾上腺饱满,肝、胆、胰、脾、右侧肾上腺及双肾未见异常。腹腔及腹膜后、膈上见大者短径约0.5CM小淋巴结。宫颈体积稍大,强化不均。宫体体积不规则增大,见多发软组织密度灶,增强后呈不均匀强化。双侧附件饱满。膀胱充盈良好,壁未见增厚。盆腔内髂血管旁、骶前见短径不足0.5CM小淋巴结。多发椎骨及胸骨密度不均,部分周围示软组织密度影,以胸椎周围为著,与邻近结构分界不清。双侧坐骨局限性骨质密度减低。右侧部分肋骨骨质中断。1.结合临床,左乳癌术后,术区小片影,较前(2016-6-14)变化不著;宫颈转移治疗后,变化不著;骨转移,较前胸椎周围软组织密度增大,余基本变化不著2.左肺下叶类结节灶,变化不著;左肺纤维灶3.考虑子宫肌瘤,变化不著4.双侧附件略饱满,变化不著5.双侧腋窝、左锁上、腹腔、腹膜后及盆腔小淋巴结,变化不著6.双侧坐骨局限性骨质密度减低,右侧部分肋骨骨折,均变化不著。</t>
+  </si>
+  <si>
+    <t>右乳术后,术区未见增厚及异常强化征象。右腋窝结构紊乱。左乳及左腋窝未见异常。纵隔内未见肿大淋巴结。前纵隔胸腺区可见一低密度灶,直径约1.0CM,边界清,强化不著。右肺上叶可见两个结节灶,大者直径约2.5CM,边缘尚清晰,增强扫描可见强化。右侧斜裂胸膜增厚。肝脏密度减低,实质内可见两个结节灶,直径约1.5CM,动脉期边缘结节样强化,门脉期及延迟扫描对比剂向心性充填。另第二肝门区略可见低密度灶,直径约1.0CM,边缘尚清。另肝内见一点状致密影。胆、胰、脾及双肾未见异常。腹膜后未见肿大淋巴结。1.结合临床,右乳癌术后;右肺结节灶,考虑转移,较前(2014-04-23)片增大。3.右侧叶间胸膜增厚4.前纵隔胸腺区低密度灶,变化不著5.肝内低密度灶,较前变化不著6.肝血管瘤7.脂肪肝;肝内钙化灶</t>
+  </si>
+  <si>
+    <t>1.右乳癌术后,右腋顶部、右颈根部、锁上、左腋窝、纵隔及双肺门淋巴结转移,部分较前进展,部分较前变化不著;双肺转移,较前进展;肝转移,较前好转2.肝脏小囊肿;右肾小囊肿3.左乳异常强化灶,较前略示明显,建议观察。右乳术后缺如,术区未见异常增厚及强化。左乳腺体内可见点片状异常强化区。右腋顶部、右颈根部、锁上、左腋窝、纵隔内血管前间隙、气管前腔静脉后、主肺动脉窗区及双肺门示多发肿大淋巴结,大者短径约1.2CM。双肺示多发结节及肿块,大者直径约4.5CM,可见强化。左肺下叶可见斑片状密度增高影。肝左右叶交界处示一低密度结节灶,直径约0.8CM,边缘模糊,可见边缘强化。余肝内可见小的囊性密度灶。胆胰脾肾上腺及左肾未见异常。右肾示小囊肿。腹腔腹膜后未见明显肿大淋巴结。骨窗未见明显破坏征象。</t>
   </si>
   <si>
     <t>右腋顶部,右颈根部,锁上,左腋窝,纵隔及双肺门淋巴结,双肺,肝</t>
   </si>
   <si>
-    <t>1.左肺门占位，较2016.7.26CT片增大，考虑中央型肺癌伴阻塞性肺炎；气管隆突下、左肺门淋巴结转移，较前增大，与食管、主动脉、左肺动脉分界不清；2.双肺多发粟粒灶，较前增多；3.右肺上叶钙化灶；4.所示肝内、左肾多发低密度灶，左侧部分肋骨欠规整，请结合相关检查。请结合临床。左肺门增大，见团片影，边界不清，较大层面大小约3.9CM×5.6CM，CT值约22HU；左肺支气管管腔狭窄，部分截断，远端肺组织内见条片状模糊影。双肺多发粟粒影，左肺为著。右肺上叶见点状致密影。气管隆突下、左肺门见肿大淋巴结，较大者短径约2.0CM。两胸腔未见积液征象。所示肝内、左肾多发类圆形低密度影，边界较清。</t>
+    <t>1.左肺门占位,较2016.7.26CT片增大,考虑中央型肺癌伴阻塞性肺炎;气管隆突下、左肺门淋巴结转移,较前增大,与食管、主动脉、左肺动脉分界不清;2.双肺多发粟粒灶,较前增多;3.右肺上叶钙化灶;4.所示肝内、左肾多发低密度灶,左侧部分肋骨欠规整,请结合相关检查。请结合临床。左肺门增大,见团片影,边界不清,较大层面大小约3.9CM×5.6CM,CT值约22HU;左肺支气管管腔狭窄,部分截断,远端肺组织内见条片状模糊影。双肺多发粟粒影,左肺为著。右肺上叶见点状致密影。气管隆突下、左肺门见肿大淋巴结,较大者短径约2.0CM。两胸腔未见积液征象。所示肝内、左肾多发类圆形低密度影,边界较清。</t>
   </si>
   <si>
     <t>3.9CM×5.6CM</t>
@@ -896,7 +896,7 @@
     <t>气管隆突下,左肺门淋巴结</t>
   </si>
   <si>
-    <t>左肺下叶近肺门处可见一团块状高密度影，边界不清，周围可见毛刺及分叶，大小约为5.91CM×5.77CM，平扫CT值约为31HU；增强扫描可见明显强化，三期CT值分别为45HU、68HU、66HU；左肺门区支气管及大血管未见明显受侵。左肺上叶前段少许淡片状高密度影，并可见一圆形透亮影。所示右肺门及气管支气管影正常。纵隔内可见多个增大的淋巴结，大者约为3.63CM×1.85CM。两胸腔无积液征象。心脏大血管未见异常。左肺门区占位，纵隔淋巴结肿大，考虑为左肺中心型肺癌并阻塞性炎症，纵隔淋巴结转移，请结合临床，随诊。</t>
+    <t>左肺下叶近肺门处可见一团块状高密度影,边界不清,周围可见毛刺及分叶,大小约为5.91CM×5.77CM,平扫CT值约为31HU;增强扫描可见明显强化,三期CT值分别为45HU、68HU、66HU;左肺门区支气管及大血管未见明显受侵。左肺上叶前段少许淡片状高密度影,并可见一圆形透亮影。所示右肺门及气管支气管影正常。纵隔内可见多个增大的淋巴结,大者约为3.63CM×1.85CM。两胸腔无积液征象。心脏大血管未见异常。左肺门区占位,纵隔淋巴结肿大,考虑为左肺中心型肺癌并阻塞性炎症,纵隔淋巴结转移,请结合临床,随诊。</t>
   </si>
   <si>
     <t>左肺下叶近肺门处,左肺门区</t>
@@ -905,25 +905,25 @@
     <t>5.91CM×5.77CM</t>
   </si>
   <si>
-    <t>左肺门区可见软组织团块影，CT值约34HU，形态不规则，边界欠清，最大层面范围约为7.0CM×3.8CM；左肺下叶局部支气管狭窄。右肺上叶(45)后段见片状稍高密度影，边界欠清。右肺见散在小淡片影，边界欠清；纵隔内见增大淋巴结影，大者短径约2.6CM。双侧胸腔见液弧形液体密度影。左心房略增大，部分主动脉及冠状动脉壁见钙化影，心包略增厚。1.左肺门区肿块，纵隔内多发增大淋巴结，考虑恶性肿瘤伴纵隔淋巴结转移可能性大，较2014-03-28CT左肺门区肿块及纵隔淋巴结均较前增大；2.双侧胸腔积液，较前减少；3.右肺上叶斑片影，考虑炎症，较前新发；4.左心房略增大，心包略增厚，较前相仿。</t>
+    <t>左肺门区可见软组织团块影,CT值约34HU,形态不规则,边界欠清,最大层面范围约为7.0CM×3.8CM;左肺下叶局部支气管狭窄。右肺上叶(45)后段见片状稍高密度影,边界欠清。右肺见散在小淡片影,边界欠清;纵隔内见增大淋巴结影,大者短径约2.6CM。双侧胸腔见液弧形液体密度影。左心房略增大,部分主动脉及冠状动脉壁见钙化影,心包略增厚。1.左肺门区肿块,纵隔内多发增大淋巴结,考虑恶性肿瘤伴纵隔淋巴结转移可能性大,较2014-03-28CT左肺门区肿块及纵隔淋巴结均较前增大;2.双侧胸腔积液,较前减少;3.右肺上叶斑片影,考虑炎症,较前新发;4.左心房略增大,心包略增厚,较前相仿。</t>
   </si>
   <si>
     <t>7.0CM×3.8CM</t>
   </si>
   <si>
-    <t>右乳内上象限可见软组织密度结节灶，大者截面大小约1.0CM×0.9CM，边缘较模糊，与周围腺体分界欠清，增强后呈较显著强化。右侧腋窝未见明显肿大淋巴结。左乳及左侧腋窝未见明显肿大淋巴结。双侧肺野内可见散在小结节灶，边界较模糊，大者直径约0.3CM。纵隔内主动脉弓旁可见肿大淋巴结，大者短径约0.8CM。心包内示少量液体密度影。所扫肝内示低密度灶，直径约0.7CM，边缘略模糊，强化不著。1.右乳癌，较前(2016-03-11)片好转；右侧腋窝淋巴结转移治疗后基本消失2.双肺类结节灶，变化不著3.纵隔淋巴结肿大，较前略缩小4.肝内低密度灶，考虑囊肿，变化不著5.心包少量积液</t>
+    <t>右乳内上象限可见软组织密度结节灶,大者截面大小约1.0CM×0.9CM,边缘较模糊,与周围腺体分界欠清,增强后呈较显著强化。右侧腋窝未见明显肿大淋巴结。左乳及左侧腋窝未见明显肿大淋巴结。双侧肺野内可见散在小结节灶,边界较模糊,大者直径约0.3CM。纵隔内主动脉弓旁可见肿大淋巴结,大者短径约0.8CM。心包内示少量液体密度影。所扫肝内示低密度灶,直径约0.7CM,边缘略模糊,强化不著。1.右乳癌,较前(2016-03-11)片好转;右侧腋窝淋巴结转移治疗后基本消失2.双肺类结节灶,变化不著3.纵隔淋巴结肿大,较前略缩小4.肝内低密度灶,考虑囊肿,变化不著5.心包少量积液</t>
   </si>
   <si>
     <t>1.0CM×0.9CM</t>
   </si>
   <si>
-    <t>左乳术后缺如，部分胸肌存在，术区皮肤及软组织略增厚，增强后不均匀强化；左侧腋窝术后，见多发淋巴结，大者短径约0.6CM。右乳及右侧腋窝未见明确异常。左侧内乳区见短径不足0.5CM小淋巴结。左肺上叶胸膜下可见类结节灶，直径约0.2CM。左肺下叶可见斑片状影。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。胸腔内未见积液。胸廓诸骨未见骨质破坏。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺未见异常。腹膜后见短径不足0.5CM小淋巴结。部分椎体密度减低。1.左乳癌术后复发并左腋窝多发淋巴结转移，较前(2016-12-23)变化不著；左侧内乳区小淋巴结较前变化不著。2.左肺类结节灶，较前变化不著。3.腹膜后小淋巴结较前变化不著。4.椎体部分密度减低变化不著。</t>
+    <t>左乳术后缺如,部分胸肌存在,术区皮肤及软组织略增厚,增强后不均匀强化;左侧腋窝术后,见多发淋巴结,大者短径约0.6CM。右乳及右侧腋窝未见明确异常。左侧内乳区见短径不足0.5CM小淋巴结。左肺上叶胸膜下可见类结节灶,直径约0.2CM。左肺下叶可见斑片状影。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。胸腔内未见积液。胸廓诸骨未见骨质破坏。肝脏形态、大小可,实质内未见异常。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺未见异常。腹膜后见短径不足0.5CM小淋巴结。部分椎体密度减低。1.左乳癌术后复发并左腋窝多发淋巴结转移,较前(2016-12-23)变化不著;左侧内乳区小淋巴结较前变化不著。2.左肺类结节灶,较前变化不著。3.腹膜后小淋巴结较前变化不著。4.椎体部分密度减低变化不著。</t>
   </si>
   <si>
     <t>左腋窝多发淋巴结</t>
   </si>
   <si>
-    <t>左肺上叶舌段及下叶基底段可见不规则团块影，大者约3.09CM×2.00CM，CT值约32HU，周围可见血管集束征及毛刺征。双肺可见多发结节影，大者径约1.59CM。纵隔内可见多发肿大淋巴结影，左肺门增大。两胸腔未见积液征象。冠脉可见致密影。颈7-胸1椎可见低密度影。1、左肺上叶肺癌，纵隔内多发淋巴结转移，双肺多发转移瘤；2、颈7-胸1骨转移瘤。</t>
+    <t>左肺上叶舌段及下叶基底段可见不规则团块影,大者约3.09CM×2.00CM,CT值约32HU,周围可见血管集束征及毛刺征。双肺可见多发结节影,大者径约1.59CM。纵隔内可见多发肿大淋巴结影,左肺门增大。两胸腔未见积液征象。冠脉可见致密影。颈7-胸1椎可见低密度影。1、左肺上叶肺癌,纵隔内多发淋巴结转移,双肺多发转移瘤;2、颈7-胸1骨转移瘤。</t>
   </si>
   <si>
     <t>左肺上叶,颈7-胸1骨</t>
@@ -935,7 +935,7 @@
     <t>双肺,纵隔内多发淋巴结,双肺</t>
   </si>
   <si>
-    <t>左肺上叶近纵隔旁见团片状软组织影，最大截面大小约为6.6CM×3.0CM，平扫CT值约45HU。右肺上叶近水平裂见一结节。双肺纵隔旁可见多发条片状模糊影。主动脉弓旁、纵隔及左肺门多发淋巴结增大，大者短径约3.8CM，病灶互相融合。两胸腔无积液征象，双侧胸膜略增厚。心脏大血管形态未见异常，心包增厚。1.左肺上叶纵隔旁型肺癌伴左肺门及纵隔淋巴结转移，较2012-03-15CT进展；2.双肺纵隔旁放射性肺炎；双侧胸膜略厚，心包增厚；3.右肺上叶小结节，较前相仿。</t>
+    <t>左肺上叶近纵隔旁见团片状软组织影,最大截面大小约为6.6CM×3.0CM,平扫CT值约45HU。右肺上叶近水平裂见一结节。双肺纵隔旁可见多发条片状模糊影。主动脉弓旁、纵隔及左肺门多发淋巴结增大,大者短径约3.8CM,病灶互相融合。两胸腔无积液征象,双侧胸膜略增厚。心脏大血管形态未见异常,心包增厚。1.左肺上叶纵隔旁型肺癌伴左肺门及纵隔淋巴结转移,较2012-03-15CT进展;2.双肺纵隔旁放射性肺炎;双侧胸膜略厚,心包增厚;3.右肺上叶小结节,较前相仿。</t>
   </si>
   <si>
     <t>左肺上叶,左肺上叶纵隔旁型</t>
@@ -947,7 +947,7 @@
     <t>左肺门及纵隔淋巴结</t>
   </si>
   <si>
-    <t>1.左肺上叶舌段中心型肺癌，伴远端阻塞性炎症、纵隔及双肺门淋巴结转移，请结合临床；2.支气管炎征象，轻度肺气肿，肺大泡；3.双肺多发钙化灶。左肺上叶舌段不规则形软组织密度影，边界清楚且呈分叶状改变，大小约：7.2CM×3.10CM，CT值约：21HU，左肺上叶舌段支气管狭窄、截断，远端片状高密度影，边界模糊；右肺尖小结节，径约：0.52CM；双肺多发囊状低密度影；双肺多发钙化灶；两肺门及纵隔内增大的淋巴结；右侧胸膜略增厚。心脏不大；心包略增厚。</t>
+    <t>1.左肺上叶舌段中心型肺癌,伴远端阻塞性炎症、纵隔及双肺门淋巴结转移,请结合临床;2.支气管炎征象,轻度肺气肿,肺大泡;3.双肺多发钙化灶。左肺上叶舌段不规则形软组织密度影,边界清楚且呈分叶状改变,大小约:7.2CM×3.10CM,CT值约:21HU,左肺上叶舌段支气管狭窄、截断,远端片状高密度影,边界模糊;右肺尖小结节,径约:0.52CM;双肺多发囊状低密度影;双肺多发钙化灶;两肺门及纵隔内增大的淋巴结;右侧胸膜略增厚。心脏不大;心包略增厚。</t>
   </si>
   <si>
     <t>7.2CM×3.10CM</t>
@@ -959,13 +959,13 @@
     <t>右侧胸膜,纵隔淋巴结,右肺淋巴道,右侧腋窝及纵隔淋巴结,右侧多个肋骨、胸3、12椎体</t>
   </si>
   <si>
-    <t>1.右下中心型肺癌，右肺多发转移瘤，侵及右侧胸膜，右侧多个肋骨成骨性转移，较2013.04.19CT片，肋骨转移范围扩大；2.右乳钙化结节，较前相仿；3.腹部病变，请结合腹部检查。双侧胸廓不对称，右侧胸廓塌陷，右肺体积减小，右肺下叶见团块状高密度影，形态不规则，边界不清楚，大小约3.97CM×4.64CM，CT值约29HU，右侧主支气管及下叶支气管受压变窄；右肺野及右胸膜可见高密度结节影，大小不一；右侧胸腔及右侧叶间裂见高密度影，部分包裹，右侧胸腔可见弧形液性密度影，右侧胸膜不均匀增厚。纵隔淋巴结增大，径长者约为1.28CM。心影大小正常范围。右侧第2、4、7、8肋骨骨质密度不均匀增高，形态不规整，其内可见骨质破坏。右侧乳腺内见一结节影，径约0.9CM，边界清晰，其内见点状钙化。</t>
+    <t>1.右下中心型肺癌,右肺多发转移瘤,侵及右侧胸膜,右侧多个肋骨成骨性转移,较2013.04.19CT片,肋骨转移范围扩大;2.右乳钙化结节,较前相仿;3.腹部病变,请结合腹部检查。双侧胸廓不对称,右侧胸廓塌陷,右肺体积减小,右肺下叶见团块状高密度影,形态不规则,边界不清楚,大小约3.97CM×4.64CM,CT值约29HU,右侧主支气管及下叶支气管受压变窄;右肺野及右胸膜可见高密度结节影,大小不一;右侧胸腔及右侧叶间裂见高密度影,部分包裹,右侧胸腔可见弧形液性密度影,右侧胸膜不均匀增厚。纵隔淋巴结增大,径长者约为1.28CM。心影大小正常范围。右侧第2、4、7、8肋骨骨质密度不均匀增高,形态不规整,其内可见骨质破坏。右侧乳腺内见一结节影,径约0.9CM,边界清晰,其内见点状钙化。</t>
   </si>
   <si>
     <t>右肺,右侧多个肋骨</t>
   </si>
   <si>
-    <t>右肺门见肿块影，肿块与上纵膈分界不清，内见结节状致密影，最大层面(S52)大小约6.09CM×4.48CM，平扫CT值约33HU，增强扫描三期CT值分别约55，78，65HU，右肺上叶、右肺中叶、右肺下叶支气管狭窄改变，远端伴斑片状模糊影。两肺透亮度不均，右侧胸腔积液、心包积液征象。两肺散在粟粒影。纵隔内见增大淋巴结，短径约1.51CM，增强呈中度强化。1、右上中心型肺癌并远端阻塞性肺炎，右上肺淋巴道转移可能性大；2、肺气肿，肺大泡；3、右侧胸腔积液、心包积液；</t>
+    <t>右肺门见肿块影,肿块与上纵膈分界不清,内见结节状致密影,最大层面(S52)大小约6.09CM×4.48CM,平扫CT值约33HU,增强扫描三期CT值分别约55,78,65HU,右肺上叶、右肺中叶、右肺下叶支气管狭窄改变,远端伴斑片状模糊影。两肺透亮度不均,右侧胸腔积液、心包积液征象。两肺散在粟粒影。纵隔内见增大淋巴结,短径约1.51CM,增强呈中度强化。1、右上中心型肺癌并远端阻塞性肺炎,右上肺淋巴道转移可能性大;2、肺气肿,肺大泡;3、右侧胸腔积液、心包积液;</t>
   </si>
   <si>
     <t>右肺门,右上</t>
@@ -977,16 +977,16 @@
     <t>右上肺淋巴道</t>
   </si>
   <si>
-    <t>1.左肺病变考虑恶性肿瘤，双肺、胸3椎体及纵隔淋巴结转移，较2011.12.28CT片未见明显改变；2.右肺上叶肺大泡。两肺纹理增强，双肺野内见多发大小不等密度增高影，部分呈磨玻璃密度改变，大者约1.9CM×1.1CM；右肺上叶尖段见囊状透过度增高区。左肺肋胸膜、膈胸膜、斜裂胸膜均明显增厚，最厚约2.06CM，CT值约37HU，增强扫描后3期CT值分别约45HU、56HU、69HU。两肺门区未见异常。所示气管支气管影正常。纵隔内见多发小淋巴结影，大者短径0.8CM。两胸腔无积液征象。主动脉管壁见钙化影。胸3椎体见结节样致密影。</t>
-  </si>
-  <si>
-    <t>右乳术后，术区可见多发软组织肿块影，部分隆起于表面，大者约1.4CM×2.4CM，增强扫描中等不均匀性强化。左乳未见异常。双肺清晰。右侧锁骨后方、右侧腋窝、胸肌后方、右侧内乳区可见软组织肿块影，大者短径约2.8CM，边界不清，轻度强化，部分与胸膜及肋软骨关系密切，局部肋软骨骨质略示稀疏。左侧锁骨上区可见片状密度增高影，边缘可见多发结节状钙化灶，增强扫描无明显强化。肝内似可见多发略低密度灶，大者直径约1.2CM，边缘模糊。肝左右叶交界区似可见一结节状强化灶(9-46)，直径约0.6CM。左肾可见囊性密度灶。腹腔腹膜后未见肿大淋巴结。骨窗部分胸椎椎体及附件骨质局限性稀疏。1.结合临床，右乳癌术后复发并右侧锁骨上、腋窝、胸肌后方、内乳区淋巴结转移，部分较前(2015-12-4)变化不著，部分较前略进展2.左侧锁骨上区密度增高影，建议观察3.肝转移，较前进展，肝内强化灶，不典型血管瘤不除外，建议MRI检查定性4.左肾囊肿5.胸椎局限性骨质稀疏，变化不著，建议骨扫描定性</t>
+    <t>1.左肺病变考虑恶性肿瘤,双肺、胸3椎体及纵隔淋巴结转移,较2011.12.28CT片未见明显改变;2.右肺上叶肺大泡。两肺纹理增强,双肺野内见多发大小不等密度增高影,部分呈磨玻璃密度改变,大者约1.9CM×1.1CM;右肺上叶尖段见囊状透过度增高区。左肺肋胸膜、膈胸膜、斜裂胸膜均明显增厚,最厚约2.06CM,CT值约37HU,增强扫描后3期CT值分别约45HU、56HU、69HU。两肺门区未见异常。所示气管支气管影正常。纵隔内见多发小淋巴结影,大者短径0.8CM。两胸腔无积液征象。主动脉管壁见钙化影。胸3椎体见结节样致密影。</t>
+  </si>
+  <si>
+    <t>右乳术后,术区可见多发软组织肿块影,部分隆起于表面,大者约1.4CM×2.4CM,增强扫描中等不均匀性强化。左乳未见异常。双肺清晰。右侧锁骨后方、右侧腋窝、胸肌后方、右侧内乳区可见软组织肿块影,大者短径约2.8CM,边界不清,轻度强化,部分与胸膜及肋软骨关系密切,局部肋软骨骨质略示稀疏。左侧锁骨上区可见片状密度增高影,边缘可见多发结节状钙化灶,增强扫描无明显强化。肝内似可见多发略低密度灶,大者直径约1.2CM,边缘模糊。肝左右叶交界区似可见一结节状强化灶(9-46),直径约0.6CM。左肾可见囊性密度灶。腹腔腹膜后未见肿大淋巴结。骨窗部分胸椎椎体及附件骨质局限性稀疏。1.结合临床,右乳癌术后复发并右侧锁骨上、腋窝、胸肌后方、内乳区淋巴结转移,部分较前(2015-12-4)变化不著,部分较前略进展2.左侧锁骨上区密度增高影,建议观察3.肝转移,较前进展,肝内强化灶,不典型血管瘤不除外,建议MRI检查定性4.左肾囊肿5.胸椎局限性骨质稀疏,变化不著,建议骨扫描定性</t>
   </si>
   <si>
     <t>肝,右侧锁骨上,腋窝,胸肌后方,内乳区淋巴结</t>
   </si>
   <si>
-    <t>双肺纹理增强，右肺小叶间隔增厚、紊乱；双肺内见多发斑片状模糊高密度影，以右肺为著。右肺下叶后基底段可见一结节样高密度影，分叶、毛刺，邻近血管束集，病变大小约为2.51CM×1.78CM，CT值约为23HU。双肺上叶见结节状及索条状高密度影。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。双侧胸膜增厚；两胸腔无积液征象。心脏不大，降主动脉管壁见钙化影，部分钙化斑内移。胸骨、部分胸椎及双侧肋骨见斑片状高密度影。对比2012.6.11CT：1.右肺下叶不规则结节，考虑周围型肺癌，较前相仿；2.双肺散在炎症，右肺为著，右肺间质纤维化；较前相仿；3.双肺上叶陈旧性病变，较前相仿；4.胸骨、部分胸椎及双侧肋骨多发转移，较前相仿；5.降主动脉管壁钙化，部分钙化斑内移，较前变化不大，请随诊。</t>
+    <t>双肺纹理增强,右肺小叶间隔增厚、紊乱;双肺内见多发斑片状模糊高密度影,以右肺为著。右肺下叶后基底段可见一结节样高密度影,分叶、毛刺,邻近血管束集,病变大小约为2.51CM×1.78CM,CT值约为23HU。双肺上叶见结节状及索条状高密度影。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。双侧胸膜增厚;两胸腔无积液征象。心脏不大,降主动脉管壁见钙化影,部分钙化斑内移。胸骨、部分胸椎及双侧肋骨见斑片状高密度影。对比2012.6.11CT:1.右肺下叶不规则结节,考虑周围型肺癌,较前相仿;2.双肺散在炎症,右肺为著,右肺间质纤维化;较前相仿;3.双肺上叶陈旧性病变,较前相仿;4.胸骨、部分胸椎及双侧肋骨多发转移,较前相仿;5.降主动脉管壁钙化,部分钙化斑内移,较前变化不大,请随诊。</t>
   </si>
   <si>
     <t>右肺下叶后基底段</t>
@@ -998,13 +998,13 @@
     <t>胸骨,胸椎,双侧肋骨</t>
   </si>
   <si>
-    <t>右乳外上象限见一软组织密度结节灶，边界欠清，与周围腺体分界不清，截面积约1.2CM×1.3CM；增强扫描呈较显著不均匀强化。左乳未见明确异常。右侧腋窝见肿大淋巴结，大者短径约1.2CM。左侧腋窝见稍大淋巴结，大者短径约0.6CM。双侧内乳区、双肺门及纵隔未见明确肿大淋巴结。双肺野较清晰，未见明确异常密度灶，气管及各级支气管通畅。扫描野内肝顶部见一低密度灶，边界尚清，直径约0.3CM。另于肝右叶见一低密度灶，边缘模糊(图5-53)，边缘模糊，直径约0.6CM。1.结合临床，右乳癌并右侧腋窝淋巴结转移2.左侧腋窝小淋巴结3.肝右叶低密度灶，建议MR检查4.肝顶部小低密度灶，考虑囊肿</t>
+    <t>右乳外上象限见一软组织密度结节灶,边界欠清,与周围腺体分界不清,截面积约1.2CM×1.3CM;增强扫描呈较显著不均匀强化。左乳未见明确异常。右侧腋窝见肿大淋巴结,大者短径约1.2CM。左侧腋窝见稍大淋巴结,大者短径约0.6CM。双侧内乳区、双肺门及纵隔未见明确肿大淋巴结。双肺野较清晰,未见明确异常密度灶,气管及各级支气管通畅。扫描野内肝顶部见一低密度灶,边界尚清,直径约0.3CM。另于肝右叶见一低密度灶,边缘模糊(图5-53),边缘模糊,直径约0.6CM。1.结合临床,右乳癌并右侧腋窝淋巴结转移2.左侧腋窝小淋巴结3.肝右叶低密度灶,建议MR检查4.肝顶部小低密度灶,考虑囊肿</t>
   </si>
   <si>
     <t>1.2CM×1.3CM</t>
   </si>
   <si>
-    <t>左肺门区及左肺下叶可见巨大团块影，最大截面径约8.41CM，CT值约31HU，左肺下叶支气管截断，肿块周围肺组织见多发斑片影，呈网格状改变，增强扫描肿块不均匀强化，内可见多发血管影，三期CT值约：39-78HU、36-63HU、41-67HU，并见左下肺静脉截断。右肺上叶可见淡片影，边界模糊，双肺上叶、右肺中叶可见多发粟粒影。左上肺钙化灶。纵隔内可见度多发淋巴结影，大者径约1.18CM。两胸腔无积液征象。心脏大小形态未见异常。1.左肺门及左肺下叶肿块，考虑恶性，左肺下叶阻塞性炎症，间质增厚，左下肺静脉受侵可能；纵隔淋巴结增大；2.右肺上叶炎症改变，左上肺钙化灶；3.双肺多发粟粒灶，转移不除外，请结合临床。</t>
+    <t>左肺门区及左肺下叶可见巨大团块影,最大截面径约8.41CM,CT值约31HU,左肺下叶支气管截断,肿块周围肺组织见多发斑片影,呈网格状改变,增强扫描肿块不均匀强化,内可见多发血管影,三期CT值约:39-78HU、36-63HU、41-67HU,并见左下肺静脉截断。右肺上叶可见淡片影,边界模糊,双肺上叶、右肺中叶可见多发粟粒影。左上肺钙化灶。纵隔内可见度多发淋巴结影,大者径约1.18CM。两胸腔无积液征象。心脏大小形态未见异常。1.左肺门及左肺下叶肿块,考虑恶性,左肺下叶阻塞性炎症,间质增厚,左下肺静脉受侵可能;纵隔淋巴结增大;2.右肺上叶炎症改变,左上肺钙化灶;3.双肺多发粟粒灶,转移不除外,请结合临床。</t>
   </si>
   <si>
     <t>左肺门,左肺下叶</t>
@@ -1013,7 +1013,7 @@
     <t>8.41CM</t>
   </si>
   <si>
-    <t>双肺纹理增强、紊乱，局部支气管壁增厚，边缘模糊。右肺上叶前段可见类圆形稍高密度影，边缘不规整，可见短毛刺，径约1.58CM，界尚清，平扫CT值约为24HU，增强扫描动脉期CT值约为35HU，静脉期CT值约为40HU，延迟期CT值约为53HU，邻近胸膜增厚、牵拉；右肺叶间胸膜增厚；右肺中下叶内可见条片状稍高密度影，边缘模糊；右肺中下叶另可见多个结节状稍高密度影，径约0.65CM；右侧胸腔可见胸腔积液。左肺上叶舌段可见类圆形无肺纹理的低密度区，界清；纵隔内未见明显肿大淋巴结。主动脉、双侧冠状动脉走行区内可见条状高密度钙化影。1、支气管炎；2、考虑右肺上叶前段周围型肺癌；3、右侧多发小结节，转移不除外，请结合临床；4、右肺中下叶多发索条灶；5、左肺上叶局限性肺大泡；6、双侧胸膜粘连、增厚；7、右侧胸腔积液。</t>
+    <t>双肺纹理增强、紊乱,局部支气管壁增厚,边缘模糊。右肺上叶前段可见类圆形稍高密度影,边缘不规整,可见短毛刺,径约1.58CM,界尚清,平扫CT值约为24HU,增强扫描动脉期CT值约为35HU,静脉期CT值约为40HU,延迟期CT值约为53HU,邻近胸膜增厚、牵拉;右肺叶间胸膜增厚;右肺中下叶内可见条片状稍高密度影,边缘模糊;右肺中下叶另可见多个结节状稍高密度影,径约0.65CM;右侧胸腔可见胸腔积液。左肺上叶舌段可见类圆形无肺纹理的低密度区,界清;纵隔内未见明显肿大淋巴结。主动脉、双侧冠状动脉走行区内可见条状高密度钙化影。1、支气管炎;2、考虑右肺上叶前段周围型肺癌;3、右侧多发小结节,转移不除外,请结合临床;4、右肺中下叶多发索条灶;5、左肺上叶局限性肺大泡;6、双侧胸膜粘连、增厚;7、右侧胸腔积液。</t>
   </si>
   <si>
     <t>右肺上叶前段</t>
@@ -1025,10 +1025,10 @@
     <t>右侧多发小结节</t>
   </si>
   <si>
-    <t>右乳术后缺如，术区未见异常密度灶。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门及纵隔未见肿大淋巴结。左侧内乳区见小淋巴结，短径不足0.5CM。右侧胸膜示多发类结节灶，大者直径不足0.5CM。右肺中叶见一结节灶(图4-24)，直径约0.4CM，密度较低。双肺门及纵隔未见肿大淋巴结。双侧胸腔未见积液征象。扫描野内肝实质密度均匀减低。肝内见斑点状钙化灶。胸骨及部分胸椎示骨质破坏。鼻咽、口咽、喉及下咽未见异常。左侧锁骨上区示数个小结节灶，大者短径约1.0CM，密度减低。余双侧颈动脉鞘区见短径不足0.5CM小淋巴结。左侧上颌窦粘膜略增厚。1.结合临床，右乳癌术后改变；右侧胸膜多发结节灶，考虑为胸膜转移，较前(2015-4-7)结节示减少；骨转移，较前部分密度增高；左锁骨上淋巴结肿大，变化不著2.右肺中叶结节灶，变化不著3.脂肪肝，肝内钙化灶4.左侧副鼻窦炎</t>
-  </si>
-  <si>
-    <t>1.左下肺周围型肺癌，双肺多发小转移灶，对比2012-03-05片，病变明显变小；2.纵隔内、左肺门多发稍大淋巴结，对比前片右腋窝淋巴结变小，余较前变化不大；3.胸椎、左侧肋骨、胸骨及右侧锁骨多发转移，较前变化不大；4.甲状腺占位，腹部改变，请详查。双肺透过度欠均，左下肺可见一肿块影，边界不规则，最大层面3.8CM×2.1CM，CT值约22HU；左肺下叶基底段部分支气管略窄；双肺多发小结节影。两肺门区未见异常。纵隔内、左肺门可见多发稍大的淋巴结，大者短径约0.90CM。两胸腔无积液征象。心脏大血管未见异常。第3胸椎左侧横突、第4、5、7、8、10胸椎椎体内可见结节状高密度影，第11胸椎椎体骨质密度不均匀减低，左侧第4、5、7后肋骨质密度增高。甲状腺左叶见类圆形低密度影，边界欠清，大小约为0.9CM，CT值约为26HU。肝右叶多发低密度灶，右侧肾上腺区可见软组织密度影。</t>
+    <t>右乳术后缺如,术区未见异常密度灶。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门及纵隔未见肿大淋巴结。左侧内乳区见小淋巴结,短径不足0.5CM。右侧胸膜示多发类结节灶,大者直径不足0.5CM。右肺中叶见一结节灶(图4-24),直径约0.4CM,密度较低。双肺门及纵隔未见肿大淋巴结。双侧胸腔未见积液征象。扫描野内肝实质密度均匀减低。肝内见斑点状钙化灶。胸骨及部分胸椎示骨质破坏。鼻咽、口咽、喉及下咽未见异常。左侧锁骨上区示数个小结节灶,大者短径约1.0CM,密度减低。余双侧颈动脉鞘区见短径不足0.5CM小淋巴结。左侧上颌窦粘膜略增厚。1.结合临床,右乳癌术后改变;右侧胸膜多发结节灶,考虑为胸膜转移,较前(2015-4-7)结节示减少;骨转移,较前部分密度增高;左锁骨上淋巴结肿大,变化不著2.右肺中叶结节灶,变化不著3.脂肪肝,肝内钙化灶4.左侧副鼻窦炎</t>
+  </si>
+  <si>
+    <t>1.左下肺周围型肺癌,双肺多发小转移灶,对比2012-03-05片,病变明显变小;2.纵隔内、左肺门多发稍大淋巴结,对比前片右腋窝淋巴结变小,余较前变化不大;3.胸椎、左侧肋骨、胸骨及右侧锁骨多发转移,较前变化不大;4.甲状腺占位,腹部改变,请详查。双肺透过度欠均,左下肺可见一肿块影,边界不规则,最大层面3.8CM×2.1CM,CT值约22HU;左肺下叶基底段部分支气管略窄;双肺多发小结节影。两肺门区未见异常。纵隔内、左肺门可见多发稍大的淋巴结,大者短径约0.90CM。两胸腔无积液征象。心脏大血管未见异常。第3胸椎左侧横突、第4、5、7、8、10胸椎椎体内可见结节状高密度影,第11胸椎椎体骨质密度不均匀减低,左侧第4、5、7后肋骨质密度增高。甲状腺左叶见类圆形低密度影,边界欠清,大小约为0.9CM,CT值约为26HU。肝右叶多发低密度灶,右侧肾上腺区可见软组织密度影。</t>
   </si>
   <si>
     <t>3.8CM×2.1CM</t>
@@ -1037,7 +1037,7 @@
     <t>双肺,胸椎,左侧肋骨,胸骨,右侧锁骨</t>
   </si>
   <si>
-    <t>左肺肋胸膜、膈胸膜、斜裂胸膜均明显增厚，最厚约2.09CM，CT值约40HU，增强扫描后3期CT值分别约59HU、65HU、71HU。两肺见多发大小不等高密度影，部分呈磨玻璃密度改变，大者约1.66CM×1.21CM。两肺纹理增强。两肺门区未见异常。所示气管支气管影正常。纵隔内见多发淋巴结影。两胸腔无积液征象。主动脉管壁见钙化影。胸3椎体见结节样致密影。左肺胸膜病变，考虑恶性间皮瘤伴双肺多发转移，纵隔淋巴结转移，较2011.04.19片比较病变进展；胸3椎体转移灶。</t>
+    <t>左肺肋胸膜、膈胸膜、斜裂胸膜均明显增厚,最厚约2.09CM,CT值约40HU,增强扫描后3期CT值分别约59HU、65HU、71HU。两肺见多发大小不等高密度影,部分呈磨玻璃密度改变,大者约1.66CM×1.21CM。两肺纹理增强。两肺门区未见异常。所示气管支气管影正常。纵隔内见多发淋巴结影。两胸腔无积液征象。主动脉管壁见钙化影。胸3椎体见结节样致密影。左肺胸膜病变,考虑恶性间皮瘤伴双肺多发转移,纵隔淋巴结转移,较2011.04.19片比较病变进展;胸3椎体转移灶。</t>
   </si>
   <si>
     <t>左肺胸膜</t>
@@ -1049,7 +1049,7 @@
     <t>胸3椎体,双肺,纵隔淋巴结</t>
   </si>
   <si>
-    <t>1、左肺上叶前段肿物，考虑肺癌可能大；2、双肺内多发结节影，考虑肺转移；右侧第3肋骨骨转移可能；3、肺气肿征象；左肺上叶前段间质性改变；双侧胸膜增厚；4、纵隔淋巴结大，请结合临床。双肺肺野透过度减低。双肺内见多发大小不等不规则透亮影。双肺内见多发结节影。左肺上叶前段呈网格状改变，并可见团块状软组织密度影，范围约6.5CM×4.4CM，CT平扫33HU，边缘见毛刺影。纵隔内见异常增大的淋巴结，短径约1.1CM。双侧胸膜增厚。两胸腔无积液征象。心包积液征象。右侧第3肋骨骨质破坏。</t>
+    <t>1、左肺上叶前段肿物,考虑肺癌可能大;2、双肺内多发结节影,考虑肺转移;右侧第3肋骨骨转移可能;3、肺气肿征象;左肺上叶前段间质性改变;双侧胸膜增厚;4、纵隔淋巴结大,请结合临床。双肺肺野透过度减低。双肺内见多发大小不等不规则透亮影。双肺内见多发结节影。左肺上叶前段呈网格状改变,并可见团块状软组织密度影,范围约6.5CM×4.4CM,CT平扫33HU,边缘见毛刺影。纵隔内见异常增大的淋巴结,短径约1.1CM。双侧胸膜增厚。两胸腔无积液征象。心包积液征象。右侧第3肋骨骨质破坏。</t>
   </si>
   <si>
     <t>左肺上叶前段</t>
@@ -1061,13 +1061,13 @@
     <t>双肺,右侧第3肋骨</t>
   </si>
   <si>
-    <t>右肺上叶可见团块影，大小约为3.6CM×4.6CM，呈分叶状，CT值约为34HU，周围可见棘状突起，周围并可见多发小结节状、斑点状高密度影，右侧支气管管壁增厚，管腔变窄，肿块与右肺动静脉、上腔静脉关系密切。两肺纹理清晰。两肺门区未见异常。纵隔内增大的淋巴结影，径约2.0CM。两胸腔无积液征象。心脏大血管未见异常。1.右肺上叶中心型肺癌，右侧主支气管受累，与右肺动静脉、上腔静脉关系密切，受侵可能性大，建议进一步详查；2.纵隔淋巴结转移。</t>
+    <t>右肺上叶可见团块影,大小约为3.6CM×4.6CM,呈分叶状,CT值约为34HU,周围可见棘状突起,周围并可见多发小结节状、斑点状高密度影,右侧支气管管壁增厚,管腔变窄,肿块与右肺动静脉、上腔静脉关系密切。两肺纹理清晰。两肺门区未见异常。纵隔内增大的淋巴结影,径约2.0CM。两胸腔无积液征象。心脏大血管未见异常。1.右肺上叶中心型肺癌,右侧主支气管受累,与右肺动静脉、上腔静脉关系密切,受侵可能性大,建议进一步详查;2.纵隔淋巴结转移。</t>
   </si>
   <si>
     <t>3.6CM×4.6CM</t>
   </si>
   <si>
-    <t>右肺下叶见片状肿块影，CT值约26HU，边界欠清，大小约4.8CM×2.7CM，呈分叶状，边缘可见毛刺，邻近胸膜凹陷，右肺下叶部分支气管远端截断。双肺见多发小结节影，边界清晰，大者径约0.8CM；两肺门区未见异常。纵隔见增大淋巴结影，大者径约1.43CM。两胸腔无积液征象。主动脉、冠状动脉管壁钙化。第3胸椎右侧横突内可见类圆形高密度影。第8胸椎骨质不规整，其内可见斑片状高密度影。部分胸椎内见金属固定物影。左侧腋窝见稍大淋巴结影。1.右肺下叶肺癌，较(2016-05-16)CT相仿；2.双肺多发小结节，较前部分结节为新发，部分增大；3.纵隔内多发增大淋巴结，较前略增大，考虑新发，左腋窝稍大淋巴结，请结合临床；4.第3胸椎右侧横突高密度灶，较前相仿；第8胸椎骨质破坏，较前相仿，考虑转移；部分胸椎术后改变。</t>
+    <t>右肺下叶见片状肿块影,CT值约26HU,边界欠清,大小约4.8CM×2.7CM,呈分叶状,边缘可见毛刺,邻近胸膜凹陷,右肺下叶部分支气管远端截断。双肺见多发小结节影,边界清晰,大者径约0.8CM;两肺门区未见异常。纵隔见增大淋巴结影,大者径约1.43CM。两胸腔无积液征象。主动脉、冠状动脉管壁钙化。第3胸椎右侧横突内可见类圆形高密度影。第8胸椎骨质不规整,其内可见斑片状高密度影。部分胸椎内见金属固定物影。左侧腋窝见稍大淋巴结影。1.右肺下叶肺癌,较(2016-05-16)CT相仿;2.双肺多发小结节,较前部分结节为新发,部分增大;3.纵隔内多发增大淋巴结,较前略增大,考虑新发,左腋窝稍大淋巴结,请结合临床;4.第3胸椎右侧横突高密度灶,较前相仿;第8胸椎骨质破坏,较前相仿,考虑转移;部分胸椎术后改变。</t>
   </si>
   <si>
     <t>4.8CM×2.7CM</t>
@@ -1076,7 +1076,7 @@
     <t>第8胸椎</t>
   </si>
   <si>
-    <t>右肺门区见团块影，与周围组织分界不清，大小约3.8CM×2.8CM，平扫CT值约46HU，增强三期分别为61HU、71HU、70HU，肿块包绕右侧支气管，右侧支气管及其近端分支受压，右肺下叶见斑点状模糊影；右肺(50、45、42、37、35、31、28、26、20)及左肺(54、48、47、44、38、35、34、31、30、24)见多发结节影，界清，大者位于左肺上叶前段(54)，径约0.8CM；两肺尖见多发囊状透亮区。两肺门区未见异常。所示气管支气管影通畅。纵隔内见多发肿大淋巴结，大者短径约1.5CM。两胸腔未见积液征象。心脏不大，冠脉及大血管走行区见致密影。1.右肺门区团块，考虑恶性可能，伴右肺下叶阻塞性肺炎；两肺多发结节，转移瘤可能；纵隔淋巴结增大，请结合临床详查除外其他可能；2.两肺间隔旁肺气肿。</t>
+    <t>右肺门区见团块影,与周围组织分界不清,大小约3.8CM×2.8CM,平扫CT值约46HU,增强三期分别为61HU、71HU、70HU,肿块包绕右侧支气管,右侧支气管及其近端分支受压,右肺下叶见斑点状模糊影;右肺(50、45、42、37、35、31、28、26、20)及左肺(54、48、47、44、38、35、34、31、30、24)见多发结节影,界清,大者位于左肺上叶前段(54),径约0.8CM;两肺尖见多发囊状透亮区。两肺门区未见异常。所示气管支气管影通畅。纵隔内见多发肿大淋巴结,大者短径约1.5CM。两胸腔未见积液征象。心脏不大,冠脉及大血管走行区见致密影。1.右肺门区团块,考虑恶性可能,伴右肺下叶阻塞性肺炎;两肺多发结节,转移瘤可能;纵隔淋巴结增大,请结合临床详查除外其他可能;2.两肺间隔旁肺气肿。</t>
   </si>
   <si>
     <t>3.8CM×2.8CM</t>
@@ -1085,13 +1085,13 @@
     <t>两肺</t>
   </si>
   <si>
-    <t>右肺下叶背段(23)粟粒影。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。两胸腔未见积液征象。主动脉壁及冠脉壁见弧形高密度影。右乳内见两枚团块影，边界尚清，大者径约3.8CM，CT值约40HU；右侧腋窝多发增大淋巴结，短径约1.2CM，CT值约40HU；左乳内见致密点。所示肝内密度不均。1.右肺下叶粟粒灶；2.右乳腺癌，右侧腋窝淋巴结转移，左乳内钙化灶，请结合相关检查；3.所示肝内密度不均，请详查。</t>
+    <t>右肺下叶背段(23)粟粒影。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。两胸腔未见积液征象。主动脉壁及冠脉壁见弧形高密度影。右乳内见两枚团块影,边界尚清,大者径约3.8CM,CT值约40HU;右侧腋窝多发增大淋巴结,短径约1.2CM,CT值约40HU;左乳内见致密点。所示肝内密度不均。1.右肺下叶粟粒灶;2.右乳腺癌,右侧腋窝淋巴结转移,左乳内钙化灶,请结合相关检查;3.所示肝内密度不均,请详查。</t>
   </si>
   <si>
     <t>3.8CM</t>
   </si>
   <si>
-    <t>左肺下叶外基底段可见团块影，边界模糊，可见呈浅分叶，周围可见短毛刺，邻近胸膜牵拉凹陷，最大截面大小约6.31CM×4.64CM，CT值约25HU，左肺下叶外基底段支气管局部阻塞。右肺上叶后段、双肺下叶背段(S31、33)、双肺下叶内基底段(S45)多发结节影，边界模糊，大者径约0.42CM。左肺上叶外基底段可见致密影。两肺门区未见异常。纵隔内可见稍大的淋巴结，左侧肺门可见钙化淋巴结。两胸腔无积液征象。心脏大血管未见异常。胸10、11椎体内可见片状低密度影。对比前片(2012-08-31)：1.左肺周围型肺癌，较前肿块增大；2.双肺多发小结节，较前相仿，转移不除外；3.左肺上叶外基底段钙化灶；4.胸10、11椎体片状低密度影，建议ECT检查除外转移。</t>
+    <t>左肺下叶外基底段可见团块影,边界模糊,可见呈浅分叶,周围可见短毛刺,邻近胸膜牵拉凹陷,最大截面大小约6.31CM×4.64CM,CT值约25HU,左肺下叶外基底段支气管局部阻塞。右肺上叶后段、双肺下叶背段(S31、33)、双肺下叶内基底段(S45)多发结节影,边界模糊,大者径约0.42CM。左肺上叶外基底段可见致密影。两肺门区未见异常。纵隔内可见稍大的淋巴结,左侧肺门可见钙化淋巴结。两胸腔无积液征象。心脏大血管未见异常。胸10、11椎体内可见片状低密度影。对比前片(2012-08-31):1.左肺周围型肺癌,较前肿块增大;2.双肺多发小结节,较前相仿,转移不除外;3.左肺上叶外基底段钙化灶;4.胸10、11椎体片状低密度影,建议ECT检查除外转移。</t>
   </si>
   <si>
     <t>6.31CM×4.64CM</t>
@@ -1100,13 +1100,13 @@
     <t>双肺,胸10、11椎体</t>
   </si>
   <si>
-    <t>双肺纹理稀疏，可见多发含气透亮影。右肺尖可见斑片状高密度影，边缘可见细毛刺，大小约为3.09CM×1.75CM，CT值约52HU；右肺上叶支气管狭窄，右肺门区见肿块影。左肺上叶舌段及左肺下叶內基底段可见片状高密度影。双肺可见多发小结节影。右肺下叶外基底段可见一点状钙化影。纵隔内可见多发增大的淋巴结；双胸腔无积液征象，双侧胸膜增厚。心脏大血管钙化斑。部分椎体及肋骨、胸骨可见多发斑片状致密影。双肾多发囊状液性密度影；肝内小低密度灶。1.右肺门肿块，考虑肺癌可能；2.双肺多发病变，纵隔淋巴结肿大，随诊；3.慢支、肺气肿征象，双侧胸膜增厚；4.心包增厚；5.部分椎体及肋骨、胸骨转移；以上对比2012.04.26前片，未见明显变化。</t>
+    <t>双肺纹理稀疏,可见多发含气透亮影。右肺尖可见斑片状高密度影,边缘可见细毛刺,大小约为3.09CM×1.75CM,CT值约52HU;右肺上叶支气管狭窄,右肺门区见肿块影。左肺上叶舌段及左肺下叶內基底段可见片状高密度影。双肺可见多发小结节影。右肺下叶外基底段可见一点状钙化影。纵隔内可见多发增大的淋巴结;双胸腔无积液征象,双侧胸膜增厚。心脏大血管钙化斑。部分椎体及肋骨、胸骨可见多发斑片状致密影。双肾多发囊状液性密度影;肝内小低密度灶。1.右肺门肿块,考虑肺癌可能;2.双肺多发病变,纵隔淋巴结肿大,随诊;3.慢支、肺气肿征象,双侧胸膜增厚;4.心包增厚;5.部分椎体及肋骨、胸骨转移;以上对比2012.04.26前片,未见明显变化。</t>
   </si>
   <si>
     <t>椎体,肋骨,胸骨</t>
   </si>
   <si>
-    <t>1.左下肺周围型肺癌，双肺多发转移；2.纵隔内、左肺门及右侧腋窝处多发淋巴结肿大；3.第4、8、11胸椎椎体转移，左侧第5、7后肋转移；4.甲状腺占位，请详查；5.肝右叶多发低密度灶，双侧肾上腺区软组织密度影，转移可能性大，请详查。左下肺可见一肿块影，边界不规则，最大层面4.67CM×4.37CM，CT值约21-46HU；左肺下叶基底段部分支气管略窄；双肺多发大小不等之结节影；双肺透光度不均匀。两肺门区未见异常。纵隔内、左肺门及右侧腋窝处可见多发增大的淋巴结，大者短径约1.30CM。两胸腔无积液征象。心脏大血管未见异常。第4、8胸椎椎体内可见结节状高密度影，第11胸椎椎体骨质密度不均匀减低，左侧第5、7后肋骨质密度增高。甲状腺左叶见类圆形低密度影，边界欠清，大小约为0.9CM×0.7CM，CT值约为26HU。肝右叶多发低密度灶，双侧肾上腺区可见软组织密度影。</t>
+    <t>1.左下肺周围型肺癌,双肺多发转移;2.纵隔内、左肺门及右侧腋窝处多发淋巴结肿大;3.第4、8、11胸椎椎体转移,左侧第5、7后肋转移;4.甲状腺占位,请详查;5.肝右叶多发低密度灶,双侧肾上腺区软组织密度影,转移可能性大,请详查。左下肺可见一肿块影,边界不规则,最大层面4.67CM×4.37CM,CT值约21-46HU;左肺下叶基底段部分支气管略窄;双肺多发大小不等之结节影;双肺透光度不均匀。两肺门区未见异常。纵隔内、左肺门及右侧腋窝处可见多发增大的淋巴结,大者短径约1.30CM。两胸腔无积液征象。心脏大血管未见异常。第4、8胸椎椎体内可见结节状高密度影,第11胸椎椎体骨质密度不均匀减低,左侧第5、7后肋骨质密度增高。甲状腺左叶见类圆形低密度影,边界欠清,大小约为0.9CM×0.7CM,CT值约为26HU。肝右叶多发低密度灶,双侧肾上腺区可见软组织密度影。</t>
   </si>
   <si>
     <t>4.67CM×4.37CM</t>
@@ -1115,19 +1115,19 @@
     <t>双肺,第4、8、11胸椎椎体,左侧第5、7后肋,双侧肾上腺区</t>
   </si>
   <si>
-    <t>1.考虑右肺上叶肺癌并双肺多发转移，较2015-1-6进展，双侧胸膜受累可能性大；2.左肺上叶炎症，较前进展；3.双侧胸腔积液，较前增多；4.纵隔淋巴结肿大，较前新发。右肺上叶纵隔旁可见肿块影，边缘呈分叶状，可见毛刺，大小约3.6CM×4.2CM，平扫CT值约27HU，增强扫描三期CT值约55HU、78HU、75HU；双肺\"雪花状\"弥漫分布斑片状与结节状高密度影；左肺上叶斑片状模糊影。纵隔内可见肿大淋巴结影，大者大小约2.8CM×1.5CM，增强扫描呈轻中度强化。两胸腔可见弧形液体密度影，双侧胸膜局部不规则增厚。</t>
+    <t>1.考虑右肺上叶肺癌并双肺多发转移,较2015-1-6进展,双侧胸膜受累可能性大;2.左肺上叶炎症,较前进展;3.双侧胸腔积液,较前增多;4.纵隔淋巴结肿大,较前新发。右肺上叶纵隔旁可见肿块影,边缘呈分叶状,可见毛刺,大小约3.6CM×4.2CM,平扫CT值约27HU,增强扫描三期CT值约55HU、78HU、75HU;双肺\"雪花状\"弥漫分布斑片状与结节状高密度影;左肺上叶斑片状模糊影。纵隔内可见肿大淋巴结影,大者大小约2.8CM×1.5CM,增强扫描呈轻中度强化。两胸腔可见弧形液体密度影,双侧胸膜局部不规则增厚。</t>
   </si>
   <si>
     <t>3.6CM×4.2CM</t>
   </si>
   <si>
-    <t>1.左肺上叶舌段病变，考虑周围型肺癌，较外院2011.04.26CT(1460749)前片稍增大；右肺上叶前段索条影；2.双肺多发结节，转移?较前片增多、增大，请结合临床；3.纵隔淋巴结增大；下位胸椎致密影；4.左侧乳腺缺如。左肺上叶舌段斑片影，边缘模糊，大小约3.33CM×1.84CM，邻近斜裂明显牵拉凹陷；右肺上叶前段、可见索条影。双肺多发小结节影，大者径约0.58CM。两肺门区未见异常。所示气管支气管影正常。纵隔内可见增大的淋巴结，大者短径约1.02CM。两胸腔无积液征象。心脏大血管未见异常。左侧乳腺缺如。下位胸椎可见致密影。</t>
+    <t>1.左肺上叶舌段病变,考虑周围型肺癌,较外院2011.04.26CT(1460749)前片稍增大;右肺上叶前段索条影;2.双肺多发结节,转移?较前片增多、增大,请结合临床;3.纵隔淋巴结增大;下位胸椎致密影;4.左侧乳腺缺如。左肺上叶舌段斑片影,边缘模糊,大小约3.33CM×1.84CM,邻近斜裂明显牵拉凹陷;右肺上叶前段、可见索条影。双肺多发小结节影,大者径约0.58CM。两肺门区未见异常。所示气管支气管影正常。纵隔内可见增大的淋巴结,大者短径约1.02CM。两胸腔无积液征象。心脏大血管未见异常。左侧乳腺缺如。下位胸椎可见致密影。</t>
   </si>
   <si>
     <t>3.33CM×1.84CM</t>
   </si>
   <si>
-    <t>1.双肺间质性改变；右侧少量胸腔积液；双肺粟粒灶，随诊；2.右肺中叶索条灶，慢性炎症可能；3.右侧乳腺肿物，考虑为恶性病变，较2016-07-11CT片增大；4.右侧第7后肋、第4胸椎骨质破坏，转移瘤可能性大，较前相仿，请结合临床；5.右侧多发肋骨骨折。双肺纹理增强，紊乱。右肺中叶可见高密度索条影，边缘模糊不清。右肺上叶(44、40、37)、左肺上叶(24)粟粒灶。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。右胸腔少量积液征象。心脏大血管未见异常。所示右侧乳腺见较大肿物，密度不均，大小为5.40CM×4.82CM，CT值约43HU。右侧第7后肋欠规整；第4胸椎骨质破坏，边缘模糊。右侧多根肋骨骨质连续性中断。</t>
+    <t>1.双肺间质性改变;右侧少量胸腔积液;双肺粟粒灶,随诊;2.右肺中叶索条灶,慢性炎症可能;3.右侧乳腺肿物,考虑为恶性病变,较2016-07-11CT片增大;4.右侧第7后肋、第4胸椎骨质破坏,转移瘤可能性大,较前相仿,请结合临床;5.右侧多发肋骨骨折。双肺纹理增强,紊乱。右肺中叶可见高密度索条影,边缘模糊不清。右肺上叶(44、40、37)、左肺上叶(24)粟粒灶。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。右胸腔少量积液征象。心脏大血管未见异常。所示右侧乳腺见较大肿物,密度不均,大小为5.40CM×4.82CM,CT值约43HU。右侧第7后肋欠规整;第4胸椎骨质破坏,边缘模糊。右侧多根肋骨骨质连续性中断。</t>
   </si>
   <si>
     <t>5.40CM×4.82CM</t>
@@ -1136,16 +1136,16 @@
     <t>右侧第7后肋,第4胸椎</t>
   </si>
   <si>
-    <t>1.左乳癌术后复发并左腋窝多发淋巴结转移2.左肺上叶结节灶，建议观察3.上腹部及颈部扫描未见明显异常左乳术后缺如，部分胸肌存在，术区皮肤及软组织增厚，增强后呈较显著不均匀强化；左侧腋窝术后，可见多发肿大淋巴结，大者短径约2.0CM，可见较显著强化。右乳及右侧腋窝未见明确异常。左肺上叶胸膜下可见类结节灶，直径约0.5CM；余双侧肺野清晰，肺纹理正常，肺内未见实质性病变影。双侧各叶、段支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。胸腔内未见积液。胸廓诸骨未见骨质破坏。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺及双肾形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。鼻咽、口咽及喉形态可，诸壁不厚。双侧副鼻窦充气良好。甲状腺双侧叶形态大小密度可。双颈部肌间隙清晰，未见明显肿大淋巴结。</t>
-  </si>
-  <si>
-    <t>双乳腺体丰富，左乳外侧象限见片状及结节状软组织密度影，相互融合呈肿块状，边缘模糊，最大截面积约2.6CM×3.5CM；增强扫描呈中度强化。左乳皮肤示增厚。左侧乳头未见明显内陷。右乳未见明确异常密度灶。左侧腋窝见多发肿大淋巴结，大者短径约1.6CM。右侧腋窝见增大淋巴结，大者短径约0.8CM。双侧内乳区及双肺门未见明确肿大淋巴结，纵隔内右上气管旁见短径约0.5CM的小淋巴结。另于纵隔内心包右旁见低密度影，边界较清，密度较低，未见强化，考虑为心包上隐窝。双肺野较清晰，未见明确异常密度灶。脑实质密度正常，未见明显异常密度灶。脑室、池无扩张，中线结构居中，颅骨诸骨质未见破坏。1.左乳占位，结合临床，考虑乳腺癌；左侧腋窝淋巴结转移2.右侧腋窝淋巴结肿大3.颅脑扫描未见异常</t>
+    <t>1.左乳癌术后复发并左腋窝多发淋巴结转移2.左肺上叶结节灶,建议观察3.上腹部及颈部扫描未见明显异常左乳术后缺如,部分胸肌存在,术区皮肤及软组织增厚,增强后呈较显著不均匀强化;左侧腋窝术后,可见多发肿大淋巴结,大者短径约2.0CM,可见较显著强化。右乳及右侧腋窝未见明确异常。左肺上叶胸膜下可见类结节灶,直径约0.5CM;余双侧肺野清晰,肺纹理正常,肺内未见实质性病变影。双侧各叶、段支气管通畅。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。胸腔内未见积液。胸廓诸骨未见骨质破坏。肝脏形态、大小可,实质内未见异常。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺及双肾形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。鼻咽、口咽及喉形态可,诸壁不厚。双侧副鼻窦充气良好。甲状腺双侧叶形态大小密度可。双颈部肌间隙清晰,未见明显肿大淋巴结。</t>
+  </si>
+  <si>
+    <t>双乳腺体丰富,左乳外侧象限见片状及结节状软组织密度影,相互融合呈肿块状,边缘模糊,最大截面积约2.6CM×3.5CM;增强扫描呈中度强化。左乳皮肤示增厚。左侧乳头未见明显内陷。右乳未见明确异常密度灶。左侧腋窝见多发肿大淋巴结,大者短径约1.6CM。右侧腋窝见增大淋巴结,大者短径约0.8CM。双侧内乳区及双肺门未见明确肿大淋巴结,纵隔内右上气管旁见短径约0.5CM的小淋巴结。另于纵隔内心包右旁见低密度影,边界较清,密度较低,未见强化,考虑为心包上隐窝。双肺野较清晰,未见明确异常密度灶。脑实质密度正常,未见明显异常密度灶。脑室、池无扩张,中线结构居中,颅骨诸骨质未见破坏。1.左乳占位,结合临床,考虑乳腺癌;左侧腋窝淋巴结转移2.右侧腋窝淋巴结肿大3.颅脑扫描未见异常</t>
   </si>
   <si>
     <t>2.6CM×3.5CM</t>
   </si>
   <si>
-    <t>1.左肺下叶肺癌，较前2016-03-22CT相仿；原双肺多发结节，较前数量减少；右侧胸水已吸收；2.双肺散在索条灶；3.左侧肩胛骨、部分肋骨、胸椎及附件转移，请结合临床。左肺下叶可见团块影，较大截面大小约3.5CM×2.5CM，CT值约为52HU，边界尚清，浅分叶状，周围可见斑片状稍高密度影。右肺中叶可见小结节影，径约0.41CM。双肺可见散在索条影。两肺门区未见异常。纵隔内未见淋巴结增大。双侧胸腔未见积液。心脏大血管未见异常。左侧肩胛骨、双侧部分肋骨、胸椎及附件形态欠规整，可见骨质破坏区。</t>
+    <t>1.左肺下叶肺癌,较前2016-03-22CT相仿;原双肺多发结节,较前数量减少;右侧胸水已吸收;2.双肺散在索条灶;3.左侧肩胛骨、部分肋骨、胸椎及附件转移,请结合临床。左肺下叶可见团块影,较大截面大小约3.5CM×2.5CM,CT值约为52HU,边界尚清,浅分叶状,周围可见斑片状稍高密度影。右肺中叶可见小结节影,径约0.41CM。双肺可见散在索条影。两肺门区未见异常。纵隔内未见淋巴结增大。双侧胸腔未见积液。心脏大血管未见异常。左侧肩胛骨、双侧部分肋骨、胸椎及附件形态欠规整,可见骨质破坏区。</t>
   </si>
   <si>
     <t>3.5CM×2.5CM</t>
@@ -1154,7 +1154,7 @@
     <t>肩胛骨,肋骨,胸椎及附件</t>
   </si>
   <si>
-    <t>左肺体积减小，部分肺组织及支气管缺如，纵隔左偏；左残肺近纵隔旁见肿块影及线样致密影，边缘呈分叶征，其内可见截断支气管影，肿块最大截面约为5.1CM×2.6CM，CT值约为49HU，邻近胸膜增厚。双肺多发结节影，大者径约1.2CM。两胸腔无积液征象。主动脉及冠状动脉走行区可见条形钙化影。左第5前侧肋骨及下位胸椎多发密度增高。1.左肺术后，左残肺肿块，考虑复发可能，较2015.12.10CT增大；2.双肺多发转移瘤，较前明显增多、增大；3.左侧第5前肋及下位胸椎多发密度增高，考虑转移。</t>
+    <t>左肺体积减小,部分肺组织及支气管缺如,纵隔左偏;左残肺近纵隔旁见肿块影及线样致密影,边缘呈分叶征,其内可见截断支气管影,肿块最大截面约为5.1CM×2.6CM,CT值约为49HU,邻近胸膜增厚。双肺多发结节影,大者径约1.2CM。两胸腔无积液征象。主动脉及冠状动脉走行区可见条形钙化影。左第5前侧肋骨及下位胸椎多发密度增高。1.左肺术后,左残肺肿块,考虑复发可能,较2015.12.10CT增大;2.双肺多发转移瘤,较前明显增多、增大;3.左侧第5前肋及下位胸椎多发密度增高,考虑转移。</t>
   </si>
   <si>
     <t>5.1CM×2.6CM</t>
@@ -1163,7 +1163,7 @@
     <t>双肺,下位胸椎,左侧第5前肋,下位胸椎</t>
   </si>
   <si>
-    <t>左乳外上象限可见圆形团块影，大小约为1.58CM×1.66CM，边界清晰，邻近皮肤略牵拉凹陷。左侧腋窝可见增大淋巴结影，直径约为1.76CM，边界尚清。右肺上叶后段可见结节影，直径约为0.5CM，中心可见透亮影。两肺支气管血管束欠清。两肺门区未见异常。纵隔内未见异常增大的淋巴结。双侧胸膜局限性增厚，部分钙化。双侧胸腔无积液征象。主动脉、冠脉可见条状钙化。所示部分胸椎密度欠均。1、左乳外上象限肿块，考虑乳腺癌，左侧腋窝淋巴结转移，肝脏两枚低密度病灶不除外转移，详查；2、右肺上叶后段结节，请随诊；3、双侧胸膜局限性增厚钙化；4、所示部分胸椎密度欠均。</t>
+    <t>左乳外上象限可见圆形团块影,大小约为1.58CM×1.66CM,边界清晰,邻近皮肤略牵拉凹陷。左侧腋窝可见增大淋巴结影,直径约为1.76CM,边界尚清。右肺上叶后段可见结节影,直径约为0.5CM,中心可见透亮影。两肺支气管血管束欠清。两肺门区未见异常。纵隔内未见异常增大的淋巴结。双侧胸膜局限性增厚,部分钙化。双侧胸腔无积液征象。主动脉、冠脉可见条状钙化。所示部分胸椎密度欠均。1、左乳外上象限肿块,考虑乳腺癌,左侧腋窝淋巴结转移,肝脏两枚低密度病灶不除外转移,详查;2、右肺上叶后段结节,请随诊;3、双侧胸膜局限性增厚钙化;4、所示部分胸椎密度欠均。</t>
   </si>
   <si>
     <t>1.58CM×1.66CM</t>
@@ -1172,7 +1172,7 @@
     <t>左侧腋窝淋巴结,肝脏</t>
   </si>
   <si>
-    <t>1.右肺下叶肺癌，较(2016-02-17)CT增大；2.双肺多发小结节，部分病灶较前略增大；右肺下叶胸膜下小结节较前新发；3.前上纵隔结节，较前相仿；4.纵隔内多发增大淋巴结，转移不除外，左腋窝稍大淋巴结，请结合临床；5.第3胸椎右侧横突高密度灶，较前相仿；第8胸椎骨质破坏，较前相仿，考虑转移；部分胸椎术后改变。右肺下叶见片状肿块影，CT值约26HU，边界欠清，大小约4.7CM×2.7CM，呈分叶状，边缘可见毛刺，邻近胸膜凹陷。左肺叶(S28、36)、右肺(36、39、45、48)、中叶(31、34、36)、下叶胸膜下(19)及左肺下叶外侧底段(S30)见多发小结节影，边界清晰，大者径约0.7CM；两肺门区未见异常。前上纵隔可见结节影，径约1.0CM，CT值约38HU。纵隔见增大淋巴结影，大者径约1.43CM。两胸腔无积液征象。主动脉、冠状动脉管壁钙化。第3胸椎右侧横突内可见类圆形高密度影。第8胸椎骨质不规整，其内可见斑片状高密度影。部分胸椎内见金属固定物影。左侧腋窝见稍大淋巴结影。</t>
+    <t>1.右肺下叶肺癌,较(2016-02-17)CT增大;2.双肺多发小结节,部分病灶较前略增大;右肺下叶胸膜下小结节较前新发;3.前上纵隔结节,较前相仿;4.纵隔内多发增大淋巴结,转移不除外,左腋窝稍大淋巴结,请结合临床;5.第3胸椎右侧横突高密度灶,较前相仿;第8胸椎骨质破坏,较前相仿,考虑转移;部分胸椎术后改变。右肺下叶见片状肿块影,CT值约26HU,边界欠清,大小约4.7CM×2.7CM,呈分叶状,边缘可见毛刺,邻近胸膜凹陷。左肺叶(S28、36)、右肺(36、39、45、48)、中叶(31、34、36)、下叶胸膜下(19)及左肺下叶外侧底段(S30)见多发小结节影,边界清晰,大者径约0.7CM;两肺门区未见异常。前上纵隔可见结节影,径约1.0CM,CT值约38HU。纵隔见增大淋巴结影,大者径约1.43CM。两胸腔无积液征象。主动脉、冠状动脉管壁钙化。第3胸椎右侧横突内可见类圆形高密度影。第8胸椎骨质不规整,其内可见斑片状高密度影。部分胸椎内见金属固定物影。左侧腋窝见稍大淋巴结影。</t>
   </si>
   <si>
     <t>4.7CM×2.7CM</t>
@@ -1181,7 +1181,7 @@
     <t>纵隔内多发增大淋巴结,第8胸椎</t>
   </si>
   <si>
-    <t>右侧胸膜局限性增厚，右肺下叶可见大小约8.4CM×5.2CM的团块状高密度影，CT值为39HU，相邻肋骨未见明显骨质破坏。右肺上叶可见多发囊状透亮影。左肺下叶近斜裂处可见结节影，径约0.5CM。右肺门及纵隔内可见多发增大淋巴结影，大者短径约1.2CM。右侧部分肋骨可见高密度致密影。心影不大，心包局部增厚，可见液性密度影。1.右肺下叶占位，考虑恶性伴右肺门及纵隔淋巴结转移可能大；2.右肺上叶局限性肺气肿、肺大泡；3.左肺下叶近斜裂处结节，随诊；4.右侧胸膜增厚，心包少量积液；5.右侧部分肋骨点状致密影，请结合临床除外转移。</t>
+    <t>右侧胸膜局限性增厚,右肺下叶可见大小约8.4CM×5.2CM的团块状高密度影,CT值为39HU,相邻肋骨未见明显骨质破坏。右肺上叶可见多发囊状透亮影。左肺下叶近斜裂处可见结节影,径约0.5CM。右肺门及纵隔内可见多发增大淋巴结影,大者短径约1.2CM。右侧部分肋骨可见高密度致密影。心影不大,心包局部增厚,可见液性密度影。1.右肺下叶占位,考虑恶性伴右肺门及纵隔淋巴结转移可能大;2.右肺上叶局限性肺气肿、肺大泡;3.左肺下叶近斜裂处结节,随诊;4.右侧胸膜增厚,心包少量积液;5.右侧部分肋骨点状致密影,请结合临床除外转移。</t>
   </si>
   <si>
     <t>8.4CM×5.2CM</t>
@@ -1190,7 +1190,7 @@
     <t>右肺门及纵隔淋巴结,侧部分肋骨</t>
   </si>
   <si>
-    <t>左肺门增大，可见团块影，最大层面大小约2.91CM×2.45CM，CT值约42HU，病变与周围组织分界欠清；左肺支气管受压变窄。左肺下叶见斑片影，边界模糊。两胸腔无积液征象。纵隔淋巴结增大，大者短径约1.96CM。右锁骨上淋巴结增大，大者短径约1.17CM。左肺中央型肺癌，纵隔及右锁骨上淋巴结转移，对比2013-5-7CT，可见左肺肿块较前变小，纵隔与右锁骨上淋巴结较前略小；左肺下叶阻塞性肺炎，较前病变范围无缩小。</t>
+    <t>左肺门增大,可见团块影,最大层面大小约2.91CM×2.45CM,CT值约42HU,病变与周围组织分界欠清;左肺支气管受压变窄。左肺下叶见斑片影,边界模糊。两胸腔无积液征象。纵隔淋巴结增大,大者短径约1.96CM。右锁骨上淋巴结增大,大者短径约1.17CM。左肺中央型肺癌,纵隔及右锁骨上淋巴结转移,对比2013-5-7CT,可见左肺肿块较前变小,纵隔与右锁骨上淋巴结较前略小;左肺下叶阻塞性肺炎,较前病变范围无缩小。</t>
   </si>
   <si>
     <t>2.91CM×2.45CM</t>
@@ -1199,7 +1199,7 @@
     <t>纵隔淋巴结,右锁骨上淋巴结</t>
   </si>
   <si>
-    <t>右上肺门区见团块状软组织密度影，密度不均，CT值27-32HU，大小约5.15CM×6.34CM，右上叶支气管中断狭窄，右肺上叶见斑片状高密度影，边界模糊；左肺舌叶亦见斑片状高密度影，左肺舌段支气管管腔不规则变细；双肺透光度不均，右中肺见泡状低密度影。右上肺可见小结节影；纵隔内见多发增大淋巴结，部分融合呈团块状；双侧胸腔内见少量积液征象。心脏不大，主动脉瓣区见斑状钙化。所示肝脏内见多发团片状低密度区。双侧肾上腺见软组织团块影。1.右上肺中心型肺癌伴阻塞性肺炎，纵隔淋巴结广泛转移；2.左肺舌段支气管变窄、变细，左肺舌段斑片影，较2011-02-23CT略明显，考虑阻塞性病变，请详查；3.肺气肿，肺大泡；右肺上叶小结节，随诊。4.双侧胸腔积液；5.肝脏多发病变，双侧肾上腺软组织团块，考虑转移，请结合临床详查。</t>
+    <t>右上肺门区见团块状软组织密度影,密度不均,CT值27-32HU,大小约5.15CM×6.34CM,右上叶支气管中断狭窄,右肺上叶见斑片状高密度影,边界模糊;左肺舌叶亦见斑片状高密度影,左肺舌段支气管管腔不规则变细;双肺透光度不均,右中肺见泡状低密度影。右上肺可见小结节影;纵隔内见多发增大淋巴结,部分融合呈团块状;双侧胸腔内见少量积液征象。心脏不大,主动脉瓣区见斑状钙化。所示肝脏内见多发团片状低密度区。双侧肾上腺见软组织团块影。1.右上肺中心型肺癌伴阻塞性肺炎,纵隔淋巴结广泛转移;2.左肺舌段支气管变窄、变细,左肺舌段斑片影,较2011-02-23CT略明显,考虑阻塞性病变,请详查;3.肺气肿,肺大泡;右肺上叶小结节,随诊。4.双侧胸腔积液;5.肝脏多发病变,双侧肾上腺软组织团块,考虑转移,请结合临床详查。</t>
   </si>
   <si>
     <t>5.15CM×6.34CM</t>
@@ -1208,7 +1208,7 @@
     <t>肝脏,双侧肾上腺,纵隔淋巴结</t>
   </si>
   <si>
-    <t>右肺门增大，与右肺门及纵隔内增大淋巴结分界欠清，最大截面大小约3.48CM×1.54CM，CT值约23HU，增强三期CT值分别约67、50、55HU。右肺上叶、中间段支气管狭窄，右肺上叶见片状高密度影。上腔静脉后部管壁略受侵。纵隔及右肺门见多发增大淋巴结，大者短径约2.54CM。右肺上叶可见钙化影。右肺中叶小结节(27)。双肺及胸膜下见多发局限性透亮影，大者直径约为1.2CM。两胸腔无积液征象。心脏大血管管壁可见钙化影。1.右肺门占位并右肺门及纵隔淋巴结转移；伴右肺上叶阻塞性肺炎；考虑为右肺中央型肺癌可能大，请结合其它检查；2.肺气肿；3.右肺上叶钙化灶；中叶小结节。</t>
+    <t>右肺门增大,与右肺门及纵隔内增大淋巴结分界欠清,最大截面大小约3.48CM×1.54CM,CT值约23HU,增强三期CT值分别约67、50、55HU。右肺上叶、中间段支气管狭窄,右肺上叶见片状高密度影。上腔静脉后部管壁略受侵。纵隔及右肺门见多发增大淋巴结,大者短径约2.54CM。右肺上叶可见钙化影。右肺中叶小结节(27)。双肺及胸膜下见多发局限性透亮影,大者直径约为1.2CM。两胸腔无积液征象。心脏大血管管壁可见钙化影。1.右肺门占位并右肺门及纵隔淋巴结转移;伴右肺上叶阻塞性肺炎;考虑为右肺中央型肺癌可能大,请结合其它检查;2.肺气肿;3.右肺上叶钙化灶;中叶小结节。</t>
   </si>
   <si>
     <t>3.48CM×1.54CM</t>
@@ -1217,22 +1217,22 @@
     <t>右肺门及纵隔淋巴结</t>
   </si>
   <si>
-    <t>1.右肺下叶占位，考虑周围型肺癌，较前CT(2014-10-11)病灶增大，双侧胸腔积液吸收，双肺多发转移，请结合临床；2.肺气肿；双肺多发条索灶；5.心脏增大，心包少量积液；6.双侧多发肋骨骨质密度欠规整，请结合临床。结合HRCT：右肺下叶可见类圆形高密度团块影，边界清晰，截面大小约3.33CM×3.57CM，HR扫描可边缘可见浅分叶，并可见血管集束，密度尚均，CT值约31HU，病灶与邻近胸膜宽基底相连，左肺尖胸膜肥厚。双肺可见多发小结节及粟粒影。双肺可见多发条索影。双肺可见多发小片状透亮影。两肺门区未见异常。所示气管支气管影通畅。纵隔内可见稍大淋巴结影，径约1.67CM。左房、右房增大，主动脉及冠状动脉见钙化影，心包可见少量液体密度影。双侧多根肋骨骨质形态欠规整。</t>
+    <t>1.右肺下叶占位,考虑周围型肺癌,较前CT(2014-10-11)病灶增大,双侧胸腔积液吸收,双肺多发转移,请结合临床;2.肺气肿;双肺多发条索灶;5.心脏增大,心包少量积液;6.双侧多发肋骨骨质密度欠规整,请结合临床。结合HRCT:右肺下叶可见类圆形高密度团块影,边界清晰,截面大小约3.33CM×3.57CM,HR扫描可边缘可见浅分叶,并可见血管集束,密度尚均,CT值约31HU,病灶与邻近胸膜宽基底相连,左肺尖胸膜肥厚。双肺可见多发小结节及粟粒影。双肺可见多发条索影。双肺可见多发小片状透亮影。两肺门区未见异常。所示气管支气管影通畅。纵隔内可见稍大淋巴结影,径约1.67CM。左房、右房增大,主动脉及冠状动脉见钙化影,心包可见少量液体密度影。双侧多根肋骨骨质形态欠规整。</t>
   </si>
   <si>
     <t>3.33CM×3.57CM</t>
   </si>
   <si>
-    <t>右肺下叶肿块，边缘毛刺，邻近胸膜牵拉，大小约为2.5CM×1.9CM，CT值约59HU，见血管集束。双肺内可见多发结节样及粟粒样密度影，大者径约0.4CM。右肺下叶斑片状高密度影，边界模糊。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。心脏大血管未见异常。部分上位胸椎椎体及附件密度增高。右乳腺钙化灶。甲状腺右叶增大，密度不均匀。所示左肾低密度灶。1.右肺下叶周围型肺癌较前2016-11-28略减小，伴双肺多发转移，部分较前略减小、消失；2.右肺下叶炎症，较前相仿；3.部分胸椎及邻近肋骨密度增高，较前相仿；4.甲状腺右叶病变，请结合相关检查；5.所示左肾囊肿。</t>
+    <t>右肺下叶肿块,边缘毛刺,邻近胸膜牵拉,大小约为2.5CM×1.9CM,CT值约59HU,见血管集束。双肺内可见多发结节样及粟粒样密度影,大者径约0.4CM。右肺下叶斑片状高密度影,边界模糊。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。心脏大血管未见异常。部分上位胸椎椎体及附件密度增高。右乳腺钙化灶。甲状腺右叶增大,密度不均匀。所示左肾低密度灶。1.右肺下叶周围型肺癌较前2016-11-28略减小,伴双肺多发转移,部分较前略减小、消失;2.右肺下叶炎症,较前相仿;3.部分胸椎及邻近肋骨密度增高,较前相仿;4.甲状腺右叶病变,请结合相关检查;5.所示左肾囊肿。</t>
   </si>
   <si>
     <t>2.5CM×1.9CM</t>
   </si>
   <si>
-    <t>右乳术后，前胸壁近胸骨旁软组织略示增厚，增强后示轻度强化。右侧腋窝结构紊乱。右侧内乳见增大淋巴结，短径约0.4CM。纵隔内未见明显肿大淋巴结。双侧肺野内见多发囊泡状过度透光区，余肺野清晰，未见异常。肝内见多发低密度结节灶，边缘欠清晰或模糊，大者直径约0.8CM，增强后可见强化。另肝左叶内见一低密度灶，边缘尚清晰，长径约1.5CM，增强后部分边缘似见点样强化。扫描野内右肾见直径不足0.5CM小囊性低密度结节灶，边缘清晰，未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔及腹膜后未见增大淋巴结。鼻咽、口咽、喉及下咽未见异常。双侧内未见明显肿大淋巴结。双侧甲状腺大小密度形态可。1.结合临床，右乳癌术后，右侧胸壁复发；右侧内乳区淋巴结稍大；肝转移，上述病变较前2014-9-10均示好转2.双肺气肿3.肝左叶低密度灶，考虑血管瘤，建议观察4.右肾囊肿5.颈部扫描未见异常</t>
-  </si>
-  <si>
-    <t>双肺纹理稀疏，双肺透过度增强。左肺下叶内基底段可见不规则形状肿块影，边界欠清，大小约为5.8CM×5.2CM，CT值约为25HU，左肺下叶内基底段支气管阻断，左肺下叶远端可见多发斑片样渗出影。另双肺可见多发大小不一结节影，大者径约为1.1CM。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。左侧胸腔内可见少量积液。心脏大血管未见异常。所示肝内可见多发低密度影。1、左肺下叶内基底段肿块，考虑左肺下叶中心型肺癌并左肺下叶阻塞性肺炎，肺内多发转移瘤，左侧少量胸腔积液；2、肺气肿征象；3、肝内多发低密度灶-转移?请结合腹部CT。</t>
+    <t>右乳术后,前胸壁近胸骨旁软组织略示增厚,增强后示轻度强化。右侧腋窝结构紊乱。右侧内乳见增大淋巴结,短径约0.4CM。纵隔内未见明显肿大淋巴结。双侧肺野内见多发囊泡状过度透光区,余肺野清晰,未见异常。肝内见多发低密度结节灶,边缘欠清晰或模糊,大者直径约0.8CM,增强后可见强化。另肝左叶内见一低密度灶,边缘尚清晰,长径约1.5CM,增强后部分边缘似见点样强化。扫描野内右肾见直径不足0.5CM小囊性低密度结节灶,边缘清晰,未见强化。胆、胰、脾、双侧肾上腺及扫描野内左肾未见异常。腹腔及腹膜后未见增大淋巴结。鼻咽、口咽、喉及下咽未见异常。双侧内未见明显肿大淋巴结。双侧甲状腺大小密度形态可。1.结合临床,右乳癌术后,右侧胸壁复发;右侧内乳区淋巴结稍大;肝转移,上述病变较前2014-9-10均示好转2.双肺气肿3.肝左叶低密度灶,考虑血管瘤,建议观察4.右肾囊肿5.颈部扫描未见异常</t>
+  </si>
+  <si>
+    <t>双肺纹理稀疏,双肺透过度增强。左肺下叶内基底段可见不规则形状肿块影,边界欠清,大小约为5.8CM×5.2CM,CT值约为25HU,左肺下叶内基底段支气管阻断,左肺下叶远端可见多发斑片样渗出影。另双肺可见多发大小不一结节影,大者径约为1.1CM。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。左侧胸腔内可见少量积液。心脏大血管未见异常。所示肝内可见多发低密度影。1、左肺下叶内基底段肿块,考虑左肺下叶中心型肺癌并左肺下叶阻塞性肺炎,肺内多发转移瘤,左侧少量胸腔积液;2、肺气肿征象;3、肝内多发低密度灶-转移?请结合腹部CT。</t>
   </si>
   <si>
     <t>左肺下叶内基底段</t>
@@ -1244,13 +1244,13 @@
     <t>肝,肺内</t>
   </si>
   <si>
-    <t>右肺(24、27、30)粟粒灶。左肺下叶肿块，见分叶，较大层面大小约为6.6CM×4.8CM，CT值约30HU，增强扫描78HU、85HU、75HU，与胸膜关系密切。两胸腔无积液征象。各大血管边界清晰。纵隔内未见异常密度影。主动脉，肺动脉主干及其左右分支内造影剂密度均匀。所示肝脏低密度灶。1.左肺下叶占位，周围型肺癌可能性大；2.右肺多发粟粒灶，转移可能，随诊；3.肝脏改变，请结合腹部检查。</t>
+    <t>右肺(24、27、30)粟粒灶。左肺下叶肿块,见分叶,较大层面大小约为6.6CM×4.8CM,CT值约30HU,增强扫描78HU、85HU、75HU,与胸膜关系密切。两胸腔无积液征象。各大血管边界清晰。纵隔内未见异常密度影。主动脉,肺动脉主干及其左右分支内造影剂密度均匀。所示肝脏低密度灶。1.左肺下叶占位,周围型肺癌可能性大;2.右肺多发粟粒灶,转移可能,随诊;3.肝脏改变,请结合腹部检查。</t>
   </si>
   <si>
     <t>6.6CM×4.8CM</t>
   </si>
   <si>
-    <t>右侧乳腺表面皮肤光整，未见异常增厚，外侧象限内见一类圆形软组织密度影，直径约为1.53CM，CT值约为53HU，内似见点状致密影；右侧腋窝可见多个高密度结节影，大小不一，边缘光整。两肺门区未见异常；所示气管支气管影未见截断；纵隔内未见异常增大的淋巴结；两胸腔无积液征象；心脏大血管未见异常。1、右侧乳腺外侧象限软组织结节，考虑恶性可能性大，建议MR详查；2、右侧腋窝多个淋巴结肿大，考虑转移，请结合临床。。</t>
+    <t>右侧乳腺表面皮肤光整,未见异常增厚,外侧象限内见一类圆形软组织密度影,直径约为1.53CM,CT值约为53HU,内似见点状致密影;右侧腋窝可见多个高密度结节影,大小不一,边缘光整。两肺门区未见异常;所示气管支气管影未见截断;纵隔内未见异常增大的淋巴结;两胸腔无积液征象;心脏大血管未见异常。1、右侧乳腺外侧象限软组织结节,考虑恶性可能性大,建议MR详查;2、右侧腋窝多个淋巴结肿大,考虑转移,请结合临床。。</t>
   </si>
   <si>
     <t>1.53CM</t>
@@ -1259,7 +1259,7 @@
     <t>右侧腋窝多个淋巴结</t>
   </si>
   <si>
-    <t>双肺支气管血管束增多紊乱，支气管壁增厚。左肺门区可见软组织密度团块影，大小约3.46CM×2.56CM，CT值约54HU，右肺下叶背段支气管截断。双肺可见散在多发小结节影。纵隔内可见多发肿大淋巴结影，大者径约1.45CM。双侧胸腔可见弧形液体影。心脏大小形态未见异常，心包可见少量液体影，径约0.67CM。所示胸骨、双侧多根肋骨、多个胸腰椎椎体及附件可见絮状高密度影，及低密度骨质破坏区。1.考虑左肺门区中心型肺癌，双肺多发转移，淋巴道转移(增厚小叶间隔)，纵隔淋巴结转移；2.双侧胸腔、心包少量积液；3.所示多发骨转移征象。</t>
+    <t>双肺支气管血管束增多紊乱,支气管壁增厚。左肺门区可见软组织密度团块影,大小约3.46CM×2.56CM,CT值约54HU,右肺下叶背段支气管截断。双肺可见散在多发小结节影。纵隔内可见多发肿大淋巴结影,大者径约1.45CM。双侧胸腔可见弧形液体影。心脏大小形态未见异常,心包可见少量液体影,径约0.67CM。所示胸骨、双侧多根肋骨、多个胸腰椎椎体及附件可见絮状高密度影,及低密度骨质破坏区。1.考虑左肺门区中心型肺癌,双肺多发转移,淋巴道转移(增厚小叶间隔),纵隔淋巴结转移;2.双侧胸腔、心包少量积液;3.所示多发骨转移征象。</t>
   </si>
   <si>
     <t>3.46CM×2.56CM</t>
@@ -1268,7 +1268,7 @@
     <t>双肺,骨,纵隔淋巴结</t>
   </si>
   <si>
-    <t>1.右肺上叶周围型肺癌；2.左肺下叶背段胸膜下小结节，随诊；3.支气管炎；4.部分上位椎体骨质改变考虑转移。两肺纹理增强，右肺上叶后段可见团块状高密度影，最大截面约3.7CM×3.7CM，其内密度均匀，CT值约48HU，邻近胸膜受牵拉；左肺下叶背段胸膜下可见小结节影，边缘光整，径约0.32CM，双肺门区未见异常，所示气管支气管影通畅；纵隔内未见异常增大的淋巴结，两胸腔未见明显积液征象，心脏不大。部分上位椎体内骨质密度减低。</t>
+    <t>1.右肺上叶周围型肺癌;2.左肺下叶背段胸膜下小结节,随诊;3.支气管炎;4.部分上位椎体骨质改变考虑转移。两肺纹理增强,右肺上叶后段可见团块状高密度影,最大截面约3.7CM×3.7CM,其内密度均匀,CT值约48HU,邻近胸膜受牵拉;左肺下叶背段胸膜下可见小结节影,边缘光整,径约0.32CM,双肺门区未见异常,所示气管支气管影通畅;纵隔内未见异常增大的淋巴结,两胸腔未见明显积液征象,心脏不大。部分上位椎体内骨质密度减低。</t>
   </si>
   <si>
     <t>右肺上叶,右肺上叶后段</t>
@@ -1280,25 +1280,25 @@
     <t>上位椎体</t>
   </si>
   <si>
-    <t>与2012-1-10片对照：1.左肺上叶中心型肺癌并阻塞性肺炎与阻塞性肺不张，主动脉弓旁、纵隔及左肺门淋巴结转移，较前未见明显变化；2.右肺小结节，较前未见明显变化；3.左肺下叶前底段少许炎症；4.左侧肾上腺增粗，较前无明显变化。左肺上叶见团片状软组织团块，最大截面大小约为5.3CM×2.3CM，其内部密度不均，CT值约50HU，增强后明显不均匀强化，三期CT值约145HU、83HU、79HU，病灶周围可见小片状模糊高密度影，增强扫描可见多个小血管影。右肺上叶近水平裂见一径约0.5CM结节。左肺下叶前底段可见小斑片状模糊影。主动脉弓旁、纵隔及左肺门淋巴结增大，大者短径约3.7CM，增强后环形强化，内部密度较低。两胸腔无积液征象。心脏大血管形态未见异常。左侧肾上腺稍粗，增强扫描可见均匀强化。</t>
+    <t>与2012-1-10片对照:1.左肺上叶中心型肺癌并阻塞性肺炎与阻塞性肺不张,主动脉弓旁、纵隔及左肺门淋巴结转移,较前未见明显变化;2.右肺小结节,较前未见明显变化;3.左肺下叶前底段少许炎症;4.左侧肾上腺增粗,较前无明显变化。左肺上叶见团片状软组织团块,最大截面大小约为5.3CM×2.3CM,其内部密度不均,CT值约50HU,增强后明显不均匀强化,三期CT值约145HU、83HU、79HU,病灶周围可见小片状模糊高密度影,增强扫描可见多个小血管影。右肺上叶近水平裂见一径约0.5CM结节。左肺下叶前底段可见小斑片状模糊影。主动脉弓旁、纵隔及左肺门淋巴结增大,大者短径约3.7CM,增强后环形强化,内部密度较低。两胸腔无积液征象。心脏大血管形态未见异常。左侧肾上腺稍粗,增强扫描可见均匀强化。</t>
   </si>
   <si>
     <t>纵隔及左肺门淋巴结</t>
   </si>
   <si>
-    <t>右乳区可见软组织密度团块影，大小约2.3CM×1.54CM，CT值约36HU，皮肤牵拉凹陷。双肺上叶可见稍高密度结节影，大者大小约0.6CM×0.45CM。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。多个椎体、双侧多根肋骨、胸骨及左侧肱骨头可见高密度影。1.右乳腺区团块，考虑乳腺癌，右侧腋窝淋巴结增大；2.双肺上叶小结节，较20140903CT片相比未见变化；3.所示多发骨转移征象。</t>
+    <t>右乳区可见软组织密度团块影,大小约2.3CM×1.54CM,CT值约36HU,皮肤牵拉凹陷。双肺上叶可见稍高密度结节影,大者大小约0.6CM×0.45CM。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。多个椎体、双侧多根肋骨、胸骨及左侧肱骨头可见高密度影。1.右乳腺区团块,考虑乳腺癌,右侧腋窝淋巴结增大;2.双肺上叶小结节,较20140903CT片相比未见变化;3.所示多发骨转移征象。</t>
   </si>
   <si>
     <t>2.3CM×1.54CM</t>
   </si>
   <si>
-    <t>1.结合临床，右乳癌术后，多发脑转移、多发骨转移、多发肝转移、双侧肾上腺转移、右颈部淋巴结转移治疗后，其中脑转移及多数成骨性骨破坏病变未见高代谢，部分骨转移、肝及双侧肾上腺转移，右颈淋巴结转移示高代谢。2.左乳略高代谢结节，转移不除外，左前胸壁结节，无高代谢，建议观察。3.右侧大量胸腔积液，右肺中下叶受压实变；左侧胸腔及心包少量积液。4.左肺类结节，无高代谢，建议观察。5.右侧腮腺肿瘤粒子植入术后改变，局部未见高代谢。6.右侧腮腺后方皮下软组织结节，略高代谢，考虑皮脂腺囊肿。静脉注射示踪剂FDG后60MMIN行PET/CT显像。PET/CT图像示右乳术后缺如，术区未见复发征象及确切异常放射性摄取。左乳腺内局限性放射性摄取增高结节，最高SUV2.1；左前胸壁小结节，长径约为0.9CM，未见确切异常放射性摄取。双腋窝未见异常肿大淋巴结及异常放射性摄取。脑内多发低密度灶部分钙化，部分病灶周围轻度水肿，病变未见确切高代谢。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺内未见异常放射性增高灶。右侧腮腺粒子植入术后，粒子分布区未见确切异常代谢。右颈部多发肿大淋巴结，大者短径约为0.8CM，放射性摄取增高，最高SUV3.8。右侧腮腺后方皮下软组织结节，局部皮肤略增厚截面约为0.8CM×0.4CM，轻度放射性摄取，最高SUV1.9。双颈部斜角肌对称性放射性浓聚，考虑肌肉紧张所致。右侧胸腔大量积液，右肺中下叶受压不张实变；左侧胸腔及心包示少量液性密度影。左肺类结节灶，未见异常放射性摄取。腹部胃充盈尚可，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝内示低密度灶，直径约为1.3CM，放射性浓聚，最高SUV4.7。双侧肾上腺增大，均示放射性摄取增高，最高SUV4.5。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾盂、肾盏及输尿管无扩张。腹部可见条索状肠影。盆腔内膀胱放射性浓聚如常，膀胱壁无增厚。两侧腹股沟无异常淋巴结显示。子宫形态尚可，局部无异常放射性浓聚。两侧附件区未见异常放射性摄取。视野内颅骨、脊柱、骨盆诸骨、胸骨、双侧肩胛骨、双侧肱骨、双侧股骨均示弥漫成骨为主的骨质破坏，其中双侧肱骨、多个椎体、骶骨及左侧髂骨示放射性摄取增高，最高SUV7.2。</t>
+    <t>1.结合临床,右乳癌术后,多发脑转移、多发骨转移、多发肝转移、双侧肾上腺转移、右颈部淋巴结转移治疗后,其中脑转移及多数成骨性骨破坏病变未见高代谢,部分骨转移、肝及双侧肾上腺转移,右颈淋巴结转移示高代谢。2.左乳略高代谢结节,转移不除外,左前胸壁结节,无高代谢,建议观察。3.右侧大量胸腔积液,右肺中下叶受压实变;左侧胸腔及心包少量积液。4.左肺类结节,无高代谢,建议观察。5.右侧腮腺肿瘤粒子植入术后改变,局部未见高代谢。6.右侧腮腺后方皮下软组织结节,略高代谢,考虑皮脂腺囊肿。静脉注射示踪剂FDG后60MMIN行PET/CT显像。PET/CT图像示右乳术后缺如,术区未见复发征象及确切异常放射性摄取。左乳腺内局限性放射性摄取增高结节,最高SUV2.1;左前胸壁小结节,长径约为0.9CM,未见确切异常放射性摄取。双腋窝未见异常肿大淋巴结及异常放射性摄取。脑内多发低密度灶部分钙化,部分病灶周围轻度水肿,病变未见确切高代谢。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。甲状腺内未见异常放射性增高灶。右侧腮腺粒子植入术后,粒子分布区未见确切异常代谢。右颈部多发肿大淋巴结,大者短径约为0.8CM,放射性摄取增高,最高SUV3.8。右侧腮腺后方皮下软组织结节,局部皮肤略增厚截面约为0.8CM×0.4CM,轻度放射性摄取,最高SUV1.9。双颈部斜角肌对称性放射性浓聚,考虑肌肉紧张所致。右侧胸腔大量积液,右肺中下叶受压不张实变;左侧胸腔及心包示少量液性密度影。左肺类结节灶,未见异常放射性摄取。腹部胃充盈尚可,胃壁显影如常。肝脏形态可,轮廓光整,肝叶比例正常,肝内示低密度灶,直径约为1.3CM,放射性浓聚,最高SUV4.7。双侧肾上腺增大,均示放射性摄取增高,最高SUV4.5。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。两侧肾脏显影可,肾盂、肾盏及输尿管无扩张。腹部可见条索状肠影。盆腔内膀胱放射性浓聚如常,膀胱壁无增厚。两侧腹股沟无异常淋巴结显示。子宫形态尚可,局部无异常放射性浓聚。两侧附件区未见异常放射性摄取。视野内颅骨、脊柱、骨盆诸骨、胸骨、双侧肩胛骨、双侧肱骨、双侧股骨均示弥漫成骨为主的骨质破坏,其中双侧肱骨、多个椎体、骶骨及左侧髂骨示放射性摄取增高,最高SUV7.2。</t>
   </si>
   <si>
     <t>脑,骨,肝,双侧肾上腺,右颈部淋巴结,左乳</t>
   </si>
   <si>
-    <t>1.结合临床，考虑右乳癌并右侧腋窝及颈后三角区淋巴结转移2.肝内低密度灶，考虑囊肿3.胸骨局部骨质显示中断并周边环状高密度金属影，考虑术后改变，请结合临床右乳乳头内上方见一软组织密度肿块，截面约3.8CM×3.5CM，边缘分叶，密度欠均质，病变与正常腺体分界不清，邻近乳头处皮肤显示增厚，增强扫描病变呈轻度不均匀强化。左乳未见异常。右侧腋窝及右侧颈后三角区见多发增大淋巴结，大者短径约0.9CM。左侧腋窝及双锁上见短径不足0.5CM小淋巴结。双侧内乳区、纵隔及双肺门未见肿大淋巴结。扫描野内肝右叶见一低密度灶，直径约0.9CM，边界尚清，增强扫描未见强化。骨窗示：胸骨局部骨质显示中断，周边见环状高密度金属影。</t>
+    <t>1.结合临床,考虑右乳癌并右侧腋窝及颈后三角区淋巴结转移2.肝内低密度灶,考虑囊肿3.胸骨局部骨质显示中断并周边环状高密度金属影,考虑术后改变,请结合临床右乳乳头内上方见一软组织密度肿块,截面约3.8CM×3.5CM,边缘分叶,密度欠均质,病变与正常腺体分界不清,邻近乳头处皮肤显示增厚,增强扫描病变呈轻度不均匀强化。左乳未见异常。右侧腋窝及右侧颈后三角区见多发增大淋巴结,大者短径约0.9CM。左侧腋窝及双锁上见短径不足0.5CM小淋巴结。双侧内乳区、纵隔及双肺门未见肿大淋巴结。扫描野内肝右叶见一低密度灶,直径约0.9CM,边界尚清,增强扫描未见强化。骨窗示:胸骨局部骨质显示中断,周边见环状高密度金属影。</t>
   </si>
   <si>
     <t>3.8CM×3.5CM</t>
@@ -1307,7 +1307,7 @@
     <t>右侧腋窝及颈后三角区淋巴结</t>
   </si>
   <si>
-    <t>右肺下叶肿块，边缘毛刺，邻近胸膜牵拉，大小约为2.45CM×1.88CM，CT值约55HU，双肺内可见多发结节样及粟粒样密度影，大者径约0.8CM。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。部分上位胸椎骨密度增高。右乳腺钙化灶。1.右肺下叶后基底段团块灶，考虑恶性占位性病变，周围型肺癌可能性大，伴双肺多发转移，较前2016-05-13CT相仿；2.部分胸椎骨密度增高，较前相仿。</t>
+    <t>右肺下叶肿块,边缘毛刺,邻近胸膜牵拉,大小约为2.45CM×1.88CM,CT值约55HU,双肺内可见多发结节样及粟粒样密度影,大者径约0.8CM。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。部分上位胸椎骨密度增高。右乳腺钙化灶。1.右肺下叶后基底段团块灶,考虑恶性占位性病变,周围型肺癌可能性大,伴双肺多发转移,较前2016-05-13CT相仿;2.部分胸椎骨密度增高,较前相仿。</t>
   </si>
   <si>
     <t>右肺下叶,右肺下叶后基底段</t>
@@ -1316,13 +1316,13 @@
     <t>2.45CM×1.88CM</t>
   </si>
   <si>
-    <t>1.结合临床，右乳癌术后改变；骨转移，较前(2015-7-21)变化不著；左锁骨上、左下颈淋巴结转移，较前进展2.右肺中叶结节灶，变化不著3.脂肪肝，肝内钙化灶4.左侧副鼻窦炎，变化不著右乳术后缺如，术区未见异常密度灶。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门及纵隔未见肿大淋巴结。左侧内乳区见小淋巴结，短径不足0.5CM。右肺中叶见一结节灶(图3-27)，直径约0.3CM，密度较低。扫描野内肝实质密度均匀减低。肝内见斑点状钙化灶。胸骨及部分胸椎示骨质破坏。鼻咽、口咽、喉及下咽未见异常。左侧锁骨上及左侧颈后三角区示数个小结节灶，大者短径约1.9CM，密度较低。余双侧颈动脉鞘区见短径不足0.5CM小淋巴结。左侧上颌窦粘膜略增厚。。</t>
+    <t>1.结合临床,右乳癌术后改变;骨转移,较前(2015-7-21)变化不著;左锁骨上、左下颈淋巴结转移,较前进展2.右肺中叶结节灶,变化不著3.脂肪肝,肝内钙化灶4.左侧副鼻窦炎,变化不著右乳术后缺如,术区未见异常密度灶。右侧腋窝结构紊乱。左乳未见异常。双腋窝及右侧内乳区、双肺门及纵隔未见肿大淋巴结。左侧内乳区见小淋巴结,短径不足0.5CM。右肺中叶见一结节灶(图3-27),直径约0.3CM,密度较低。扫描野内肝实质密度均匀减低。肝内见斑点状钙化灶。胸骨及部分胸椎示骨质破坏。鼻咽、口咽、喉及下咽未见异常。左侧锁骨上及左侧颈后三角区示数个小结节灶,大者短径约1.9CM,密度较低。余双侧颈动脉鞘区见短径不足0.5CM小淋巴结。左侧上颌窦粘膜略增厚。。</t>
   </si>
   <si>
     <t>骨,左锁骨上,左下颈淋巴结</t>
   </si>
   <si>
-    <t>右肺门增大，右肺上叶支气管腔明显狭窄，壁明显增厚，呈团块状、范围约2.5CM×3.2CM，CT值约31HU。右肺中叶可见小结节影，大小约0.3CM。右肺下叶背段结节。两肺支气管血管束增多、变细；两肺透过度明显增加，肺野内弥漫囊状透光区；双肺尖可见片状及结节影，其内可见钙化，右肺中叶可见点状致密影；纵隔内未见异常增大的淋巴结；两胸腔无积液征象；心影增大。主动脉和冠脉钙化。1.右肺上叶中心型肺癌，较2012-04-09片进展，支气管狭窄明显；右肺中叶与下叶背段结节较前新发，考虑转移瘤可能性大；2.慢性支气管炎、肺气肿征象；3.双肺尖陈旧性病变，右肺中叶下叶点状钙化。</t>
+    <t>右肺门增大,右肺上叶支气管腔明显狭窄,壁明显增厚,呈团块状、范围约2.5CM×3.2CM,CT值约31HU。右肺中叶可见小结节影,大小约0.3CM。右肺下叶背段结节。两肺支气管血管束增多、变细;两肺透过度明显增加,肺野内弥漫囊状透光区;双肺尖可见片状及结节影,其内可见钙化,右肺中叶可见点状致密影;纵隔内未见异常增大的淋巴结;两胸腔无积液征象;心影增大。主动脉和冠脉钙化。1.右肺上叶中心型肺癌,较2012-04-09片进展,支气管狭窄明显;右肺中叶与下叶背段结节较前新发,考虑转移瘤可能性大;2.慢性支气管炎、肺气肿征象;3.双肺尖陈旧性病变,右肺中叶下叶点状钙化。</t>
   </si>
   <si>
     <t>2.5CM×3.2CM</t>
@@ -1331,7 +1331,7 @@
     <t>右肺中叶,右肺下叶背段</t>
   </si>
   <si>
-    <t>1、右肺上叶占位，考虑肺癌；2、右侧锁骨上及纵隔内淋巴结转移；3、右肺上叶结节，考虑转移；4、右肺中叶钙化灶；5、左肺多发索条灶。右肺上叶近纵隔旁可见软组织密度影，大小为7.64CM×6.08CM，CT值为36HU，边界欠清，右肺上叶支气管未见异常，纵隔内气管及食管受压变窄。增强后三期CT值为50HU、64HU、60HU。右肺尖及上叶后段可见一结节状高密度影，大者直径为1.1CM。右肺中叶可见点状钙化灶。左肺内可见多发纤维索条影。左侧胸膜增厚，部分可见钙化斑。两肺及肺门区未见异常密度影。两胸腔无积液征象。各大血管边界清晰。右侧锁骨上及纵隔内可见多个淋巴结，最大者位于锁骨上，直径为3.51CM。</t>
+    <t>1、右肺上叶占位,考虑肺癌;2、右侧锁骨上及纵隔内淋巴结转移;3、右肺上叶结节,考虑转移;4、右肺中叶钙化灶;5、左肺多发索条灶。右肺上叶近纵隔旁可见软组织密度影,大小为7.64CM×6.08CM,CT值为36HU,边界欠清,右肺上叶支气管未见异常,纵隔内气管及食管受压变窄。增强后三期CT值为50HU、64HU、60HU。右肺尖及上叶后段可见一结节状高密度影,大者直径为1.1CM。右肺中叶可见点状钙化灶。左肺内可见多发纤维索条影。左侧胸膜增厚,部分可见钙化斑。两肺及肺门区未见异常密度影。两胸腔无积液征象。各大血管边界清晰。右侧锁骨上及纵隔内可见多个淋巴结,最大者位于锁骨上,直径为3.51CM。</t>
   </si>
   <si>
     <t>7.64CM×6.08CM</t>
@@ -1340,7 +1340,7 @@
     <t>纵隔内淋巴结,右肺上叶</t>
   </si>
   <si>
-    <t>1、左肺上叶周围型肺癌；2、左肺上叶、双肺下叶多发结节，转移瘤可能性大，随诊；3、纵隔多发小淋巴结。左肺上叶尖后段可见团片影，呈分叶状，大小为1.67CM×2.41CM，CT值为19HU，可见血管集束征和胸膜牵拉征。左肺上叶、双肺下叶可见多个结节影，大者直径为0.75CM。两肺门区未见异常。所示气管支气管影正常。纵隔多发小淋巴结。两胸腔无积液征象。心脏大血管未见异常。</t>
+    <t>1、左肺上叶周围型肺癌;2、左肺上叶、双肺下叶多发结节,转移瘤可能性大,随诊;3、纵隔多发小淋巴结。左肺上叶尖后段可见团片影,呈分叶状,大小为1.67CM×2.41CM,CT值为19HU,可见血管集束征和胸膜牵拉征。左肺上叶、双肺下叶可见多个结节影,大者直径为0.75CM。两肺门区未见异常。所示气管支气管影正常。纵隔多发小淋巴结。两胸腔无积液征象。心脏大血管未见异常。</t>
   </si>
   <si>
     <t>1.67CM×2.41CM</t>
@@ -1349,7 +1349,7 @@
     <t>左肺上叶,双肺下叶</t>
   </si>
   <si>
-    <t>与2012.7.24日CT比较1.右肺上叶中心型肺癌，伴肺内转移可能性大，右侧主支气管及肺段支气管管段狭窄，闭塞，较前片进展，请结合临床；2.左肺舌叶斑片影，转移待除外；3.纵隔淋巴结转移较前增大。右肺上叶可见团块影，大小约为4.7CM×3.2CM，呈分叶状，CT值约为29HU，周围可见棘状突起，周围并可见多发结节、斑片条索影，右侧支气管管壁增厚，管腔变窄，右肺下叶及中叶支气管狭窄，肿块与右肺动静脉、上腔静脉关系密切。左肺舌叶可见斑点模糊影。左肺门区未见异常。纵隔内增大的淋巴结影，径约2.1CM。两胸腔无积液征象。心脏大血管未见异常。</t>
+    <t>与2012.7.24日CT比较1.右肺上叶中心型肺癌,伴肺内转移可能性大,右侧主支气管及肺段支气管管段狭窄,闭塞,较前片进展,请结合临床;2.左肺舌叶斑片影,转移待除外;3.纵隔淋巴结转移较前增大。右肺上叶可见团块影,大小约为4.7CM×3.2CM,呈分叶状,CT值约为29HU,周围可见棘状突起,周围并可见多发结节、斑片条索影,右侧支气管管壁增厚,管腔变窄,右肺下叶及中叶支气管狭窄,肿块与右肺动静脉、上腔静脉关系密切。左肺舌叶可见斑点模糊影。左肺门区未见异常。纵隔内增大的淋巴结影,径约2.1CM。两胸腔无积液征象。心脏大血管未见异常。</t>
   </si>
   <si>
     <t>4.7CM×3.2CM</t>
@@ -1358,19 +1358,19 @@
     <t>肺内,左肺舌叶,纵隔淋巴结</t>
   </si>
   <si>
-    <t>右肺门可见一团块影，最大层面大小约为5.05CM×6.22CM，CT值约为38HU，内可见一点状钙化，右肺上叶支气管阻断，右肺上叶膨胀不全，右肺尖见点片状高密度影；右肺中叶内侧段可见一磨玻璃密度结节，径长约0.56CM。两肺纹理清晰。两肺门区未见异常。所示气管支气管影正常。纵隔内可见多发增大淋巴结，部分融合，大者径长约1.96CM。两胸腔无积液征象。左心房增大。主动脉、冠脉可见条状钙化。右侧第7肋骨斑点状高密度影。左侧肾上腺肿块影。1、右肺门中央型肺癌伴纵隔淋巴结转移，右上肺膨胀不全并阻塞性炎症；2、右肺中叶磨玻璃密度结节，请随诊；3、右侧第7肋骨高密度，请结合其它检查随诊；4、左心房增大，右侧胸膜局部增厚；5、左侧肾上腺肿块影，请结合相关检查。</t>
+    <t>右肺门可见一团块影,最大层面大小约为5.05CM×6.22CM,CT值约为38HU,内可见一点状钙化,右肺上叶支气管阻断,右肺上叶膨胀不全,右肺尖见点片状高密度影;右肺中叶内侧段可见一磨玻璃密度结节,径长约0.56CM。两肺纹理清晰。两肺门区未见异常。所示气管支气管影正常。纵隔内可见多发增大淋巴结,部分融合,大者径长约1.96CM。两胸腔无积液征象。左心房增大。主动脉、冠脉可见条状钙化。右侧第7肋骨斑点状高密度影。左侧肾上腺肿块影。1、右肺门中央型肺癌伴纵隔淋巴结转移,右上肺膨胀不全并阻塞性炎症;2、右肺中叶磨玻璃密度结节,请随诊;3、右侧第7肋骨高密度,请结合其它检查随诊;4、左心房增大,右侧胸膜局部增厚;5、左侧肾上腺肿块影,请结合相关检查。</t>
   </si>
   <si>
     <t>5.05CM×6.22CM</t>
   </si>
   <si>
-    <t>1.右肺上叶肿块影，考虑为周围型肺癌合并纵隔淋巴结转移可能性大，请结合临床；2.左肺术后改变，左肺下叶纤维索条灶；3.左侧胸膜肥厚、钙化；4.右肺下叶小结节影，请密切随诊。右肺上叶可见一较大肿块影，密度不均匀，CT值为16~38HU；边缘不光滑，可见毛刺，周围可见片状高密度影；最大层面大小约为8.3CM×6.5CM；右上肺支气管截断。右肺下叶可见一小结节影，直径约为0.6CM。左肺体积减小；左肺下叶可见纤维索条影。纵隔内可见增大淋巴结影，大者短径约为1.3CM；双侧胸腔未见积液征象，左侧胸膜增厚，并可见条形钙化影；主动脉管壁及冠脉走行区可见点条形钙化影。</t>
+    <t>1.右肺上叶肿块影,考虑为周围型肺癌合并纵隔淋巴结转移可能性大,请结合临床;2.左肺术后改变,左肺下叶纤维索条灶;3.左侧胸膜肥厚、钙化;4.右肺下叶小结节影,请密切随诊。右肺上叶可见一较大肿块影,密度不均匀,CT值为16~38HU;边缘不光滑,可见毛刺,周围可见片状高密度影;最大层面大小约为8.3CM×6.5CM;右上肺支气管截断。右肺下叶可见一小结节影,直径约为0.6CM。左肺体积减小;左肺下叶可见纤维索条影。纵隔内可见增大淋巴结影,大者短径约为1.3CM;双侧胸腔未见积液征象,左侧胸膜增厚,并可见条形钙化影;主动脉管壁及冠脉走行区可见点条形钙化影。</t>
   </si>
   <si>
     <t>8.3CM×6.5CM</t>
   </si>
   <si>
-    <t>1、左肺上叶下舌段机化性炎症，随诊；2、左侧乳腺癌，左侧腋窝淋巴结转移，右下肺小结节，考虑转移可能性大，随诊；3、左侧甲状腺低密度灶，请详查。左肺上叶下舌段可见斑片状密度增高影，边界模糊不清。两肺纹理增多。两肺门区未见异常。所示气管支气管影正常。左侧腋窝可见一类圆形团块影，径长约1.17CM，边缘模糊，CT值约为57HU。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。左侧乳腺可见一团块影，大小约为2.36CM×3.59CM，CT值约为26HU，边界清。所示左侧甲状腺可见一类圆形低密度影。</t>
+    <t>1、左肺上叶下舌段机化性炎症,随诊;2、左侧乳腺癌,左侧腋窝淋巴结转移,右下肺小结节,考虑转移可能性大,随诊;3、左侧甲状腺低密度灶,请详查。左肺上叶下舌段可见斑片状密度增高影,边界模糊不清。两肺纹理增多。两肺门区未见异常。所示气管支气管影正常。左侧腋窝可见一类圆形团块影,径长约1.17CM,边缘模糊,CT值约为57HU。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。左侧乳腺可见一团块影,大小约为2.36CM×3.59CM,CT值约为26HU,边界清。所示左侧甲状腺可见一类圆形低密度影。</t>
   </si>
   <si>
     <t>2.36CM×3.59CM</t>
@@ -1379,16 +1379,16 @@
     <t>左侧腋窝淋巴结,右下肺</t>
   </si>
   <si>
-    <t>左肺下叶可见一肿块影，其内密度不均，可见低密度影及点状致密影，CT值约为18HU-41HU，病灶邻近部分支气管变窄，左肺不张。右肺尖可见结节影，径约1.41CM，邻近胸膜凹陷，其内可见致密影。右肺可见多个散在高密度及磨玻璃样密度结节，大者径约0.63CM。右肺密度不均匀减低，可见多个小圆形低密度影。左肺门、纵隔内可见多发肿大淋巴结影，大者短径约为2.13CM。左侧胸腔可见弧形液体密度影。主动脉、冠状动脉走行区可见弧形致密影。所示诸骨未见骨质密度明显异常改变或骨质破坏征象。1.考虑左肺下叶中心型肺癌并左肺阻塞性肺不张，较2015-6-9片病变进展，左肺门及纵隔内淋巴结转移、左侧胸腔积液较前相仿；2.右肺多发磨玻璃密度结节，较前相仿，转移不除外；3.右肺尖陈旧性病灶；4.肺气肿。</t>
+    <t>左肺下叶可见一肿块影,其内密度不均,可见低密度影及点状致密影,CT值约为18HU-41HU,病灶邻近部分支气管变窄,左肺不张。右肺尖可见结节影,径约1.41CM,邻近胸膜凹陷,其内可见致密影。右肺可见多个散在高密度及磨玻璃样密度结节,大者径约0.63CM。右肺密度不均匀减低,可见多个小圆形低密度影。左肺门、纵隔内可见多发肿大淋巴结影,大者短径约为2.13CM。左侧胸腔可见弧形液体密度影。主动脉、冠状动脉走行区可见弧形致密影。所示诸骨未见骨质密度明显异常改变或骨质破坏征象。1.考虑左肺下叶中心型肺癌并左肺阻塞性肺不张,较2015-6-9片病变进展,左肺门及纵隔内淋巴结转移、左侧胸腔积液较前相仿;2.右肺多发磨玻璃密度结节,较前相仿,转移不除外;3.右肺尖陈旧性病灶;4.肺气肿。</t>
   </si>
   <si>
     <t>右肺,左肺门及纵隔内淋巴结</t>
   </si>
   <si>
-    <t>左乳术后缺如，部分胸肌存在，术区未见明显增厚及异常强化；左侧腋窝术后，结构紊乱。右乳及右侧腋窝未见明确异常。双侧肺野内可见散在多发结节灶，大者直径约2.7CM，边界较清晰。双肺门及纵隔内未见肿大淋巴结。扫描野肝脏实质内可见多发低密度灶，边缘模糊，轻度强化。扫描野内胸廓诸骨未见骨质破坏。左乳癌术后，双肺多发转移，肝转移</t>
-  </si>
-  <si>
-    <t>1.左肺上叶下舌段结节，考虑恶性伴纵隔多发淋巴结转移可能，前纵隔区团片影、心包稍厚，局部胸骨密度减低，不除外转移可能；左侧肾上腺增粗；胸7、11椎体改变，详查；双侧第6肋局部转移?请结合临床详查；2.右肺上叶尖段小GGO，右肺下叶内侧基底段小磨玻璃灶；左肺尖磨玻璃灶及小结节影，请随诊；3.肺气肿征象；支气管炎；4.左肺下叶前内基底段索条。随诊双侧肺野透光度不一致，双肺上叶内见多发小囊状薄壁无肺纹理区；右肺上叶尖段(S17)可见一结节状磨玻璃密度影，最大径约为0.39CM；左肺上叶下舌段可见一结节状高密度影，最大径约为1.65CM，边缘欠规整，界清；左肺下叶前内基底段可见索条影。余双肺血管气管束增强，走行自然。纵隔内见多发增大的淋巴结，较大者短径约为1.33CM。前纵隔区团片影，心包稍厚。双侧胸腔内未见积液征象。双侧第6肋内局部密度欠均；左侧肾上腺形态饱满，内见一结节影，最大径约为2.55CM，CT值约为37HU。胸7椎体结节状高密度影。胸11椎体局部密度减低。</t>
+    <t>左乳术后缺如,部分胸肌存在,术区未见明显增厚及异常强化;左侧腋窝术后,结构紊乱。右乳及右侧腋窝未见明确异常。双侧肺野内可见散在多发结节灶,大者直径约2.7CM,边界较清晰。双肺门及纵隔内未见肿大淋巴结。扫描野肝脏实质内可见多发低密度灶,边缘模糊,轻度强化。扫描野内胸廓诸骨未见骨质破坏。左乳癌术后,双肺多发转移,肝转移</t>
+  </si>
+  <si>
+    <t>1.左肺上叶下舌段结节,考虑恶性伴纵隔多发淋巴结转移可能,前纵隔区团片影、心包稍厚,局部胸骨密度减低,不除外转移可能;左侧肾上腺增粗;胸7、11椎体改变,详查;双侧第6肋局部转移?请结合临床详查;2.右肺上叶尖段小GGO,右肺下叶内侧基底段小磨玻璃灶;左肺尖磨玻璃灶及小结节影,请随诊;3.肺气肿征象;支气管炎;4.左肺下叶前内基底段索条。随诊双侧肺野透光度不一致,双肺上叶内见多发小囊状薄壁无肺纹理区;右肺上叶尖段(S17)可见一结节状磨玻璃密度影,最大径约为0.39CM;左肺上叶下舌段可见一结节状高密度影,最大径约为1.65CM,边缘欠规整,界清;左肺下叶前内基底段可见索条影。余双肺血管气管束增强,走行自然。纵隔内见多发增大的淋巴结,较大者短径约为1.33CM。前纵隔区团片影,心包稍厚。双侧胸腔内未见积液征象。双侧第6肋内局部密度欠均;左侧肾上腺形态饱满,内见一结节影,最大径约为2.55CM,CT值约为37HU。胸7椎体结节状高密度影。胸11椎体局部密度减低。</t>
   </si>
   <si>
     <t>左肺上叶下舌段</t>
@@ -1400,13 +1400,13 @@
     <t>纵隔多发淋巴结,胸骨,双侧第6肋</t>
   </si>
   <si>
-    <t>对比2012-07-12CT：1.右乳腺癌术后复发，右内乳淋巴结、纵隔及两侧颈部多发淋巴结转移，双肺多发转移，胸骨转移，右侧胸壁软组织转移，较前片减小；2.双侧胸腔积液伴邻近肺组织膨胀不全，较前吸收好转；3.左室增大；4.肝脏病变，结合腹部CT。所示右侧乳腺缺如，右乳腺区见片状模糊影，右内乳动脉区、纵隔及颈部见多发肿大淋巴结，部分融合。双肺内见多发大小不一类圆形高密度影，大者，径约0.5CM。左室增大，大血管管壁未见钙化。双侧胸腔未见液体密度影。胸骨骨质欠规整。所示层面肝脏见多发低密度影。</t>
+    <t>对比2012-07-12CT:1.右乳腺癌术后复发,右内乳淋巴结、纵隔及两侧颈部多发淋巴结转移,双肺多发转移,胸骨转移,右侧胸壁软组织转移,较前片减小;2.双侧胸腔积液伴邻近肺组织膨胀不全,较前吸收好转;3.左室增大;4.肝脏病变,结合腹部CT。所示右侧乳腺缺如,右乳腺区见片状模糊影,右内乳动脉区、纵隔及颈部见多发肿大淋巴结,部分融合。双肺内见多发大小不一类圆形高密度影,大者,径约0.5CM。左室增大,大血管管壁未见钙化。双侧胸腔未见液体密度影。胸骨骨质欠规整。所示层面肝脏见多发低密度影。</t>
   </si>
   <si>
     <t>右内乳淋巴结,纵隔及两侧颈部多发淋巴结,双肺,胸骨,右侧胸壁软组织</t>
   </si>
   <si>
-    <t>右肺上叶尖段可见类圆形稍高密度影，径约4.18CM，呈分叶状，边缘毛糙，可见毛刺，邻近胸膜增厚牵拉，平扫CT值约为30HU，其内支气管壁增厚边缘模糊；右肺上叶尖段(18)、右肺下叶后基底段(34)、右肺下叶前基底段(36)、左肺上叶上舌段(33)、左肺下叶后基底段(39)可见多个磨玻璃影，径约0.67CM，边缘模糊；右肺上叶后段(22)、右肺中叶外侧段(40)可见结节状稍高密度影，径约0.41CM，界尚清；右肺中叶支气管内(29)可见结节状稍高密度影，径约0.46CM；两肺门区未见异常；纵隔内气管分叉前方可见多个结节状稍高密度影，较大者大小约为1.22CM×1.01CM；双侧胸膜局部增厚；两胸腔无积液征象。主动脉、双侧冠状动脉走行区内可见条状高密度钙化影。1.右肺上叶尖段占位，考虑周围型肺癌；邻近支气管壁增厚，呈渗出性改变，考虑淋巴道转移；2.右肺多个磨玻璃灶，首先考虑转移灶；3.左肺两枚磨玻璃灶；右肺上叶后段、右肺中叶外侧段小结节；右肺中叶支气管内小结节；建议随诊；4.纵隔内多个肿大淋巴结，转移不除外，请结合临床。</t>
+    <t>右肺上叶尖段可见类圆形稍高密度影,径约4.18CM,呈分叶状,边缘毛糙,可见毛刺,邻近胸膜增厚牵拉,平扫CT值约为30HU,其内支气管壁增厚边缘模糊;右肺上叶尖段(18)、右肺下叶后基底段(34)、右肺下叶前基底段(36)、左肺上叶上舌段(33)、左肺下叶后基底段(39)可见多个磨玻璃影,径约0.67CM,边缘模糊;右肺上叶后段(22)、右肺中叶外侧段(40)可见结节状稍高密度影,径约0.41CM,界尚清;右肺中叶支气管内(29)可见结节状稍高密度影,径约0.46CM;两肺门区未见异常;纵隔内气管分叉前方可见多个结节状稍高密度影,较大者大小约为1.22CM×1.01CM;双侧胸膜局部增厚;两胸腔无积液征象。主动脉、双侧冠状动脉走行区内可见条状高密度钙化影。1.右肺上叶尖段占位,考虑周围型肺癌;邻近支气管壁增厚,呈渗出性改变,考虑淋巴道转移;2.右肺多个磨玻璃灶,首先考虑转移灶;3.左肺两枚磨玻璃灶;右肺上叶后段、右肺中叶外侧段小结节;右肺中叶支气管内小结节;建议随诊;4.纵隔内多个肿大淋巴结,转移不除外,请结合临床。</t>
   </si>
   <si>
     <t>4.18CM</t>
@@ -1415,16 +1415,16 @@
     <t>右肺,纵隔内多个肿大淋巴结</t>
   </si>
   <si>
-    <t>1.考虑左肺下叶中心型肺癌并左肺下叶阻塞性肺不张，左肺门及纵隔内淋巴结转移；2.双肺多发磨玻璃密度结节，转移不除外；3.右肺尖区结节状钙化灶；4.肺气肿。右肺下叶可见一肿块影，与胸膜分界欠清，大小约为7.61CM×6.8CM，其内密度不均，可见更低密度影及点状致密影，CT值约为13-48HU，增强扫描三期强化CT值分别为43HU、60HU、68HU，中心更低密度影未见强化。右肺下叶支气管走形截断，右肺尖可见结节影，径约1.35CM，邻近胸膜凹陷，其内可见条样钙化影。右肺上叶(S39、49)、下叶(S57、61、75、105)、中叶(S65、67、72)、左肺上叶(S34、57、66)、下叶(S75)可见多发散在磨玻璃密度结节影，大者径约0.97CM。双肺可见多发囊状透亮影，两肺门区未见异常。纵隔内可见多发肿大淋巴结影，大者短径约为1.96CM。两胸腔无积液征象。主动脉、冠状动脉走行区可见弧形致密影。</t>
+    <t>1.考虑左肺下叶中心型肺癌并左肺下叶阻塞性肺不张,左肺门及纵隔内淋巴结转移;2.双肺多发磨玻璃密度结节,转移不除外;3.右肺尖区结节状钙化灶;4.肺气肿。右肺下叶可见一肿块影,与胸膜分界欠清,大小约为7.61CM×6.8CM,其内密度不均,可见更低密度影及点状致密影,CT值约为13-48HU,增强扫描三期强化CT值分别为43HU、60HU、68HU,中心更低密度影未见强化。右肺下叶支气管走形截断,右肺尖可见结节影,径约1.35CM,邻近胸膜凹陷,其内可见条样钙化影。右肺上叶(S39、49)、下叶(S57、61、75、105)、中叶(S65、67、72)、左肺上叶(S34、57、66)、下叶(S75)可见多发散在磨玻璃密度结节影,大者径约0.97CM。双肺可见多发囊状透亮影,两肺门区未见异常。纵隔内可见多发肿大淋巴结影,大者短径约为1.96CM。两胸腔无积液征象。主动脉、冠状动脉走行区可见弧形致密影。</t>
   </si>
   <si>
     <t>左肺门及纵隔内淋巴结,双肺</t>
   </si>
   <si>
-    <t>1.结合临床，右乳癌术后改变；肝内多发占位，结合临床，考虑转移，较前(2015-6-25)部分缩小，部分增大，但坏死成分增多；T1椎体不均匀骨质破坏，考虑转移，较前变化不著2.脂肪肝；3.右肾囊肿；4.腹膜后淋巴结肿大，较前变化不著；5.双肺小结节灶，较前变化不著，建议观察。右乳术后，术区壁未见增厚及异常强化。右侧腋窝结构紊乱，未见占位性病变。左乳及腋窝内未见异常密度灶。双侧内乳区、双侧肺门及纵隔未见增大淋巴结。双肺野内可见数个小结节灶，大者直径约0.6CM，边界欠清。肝脏密度普遍性减低，实质内见数个结节灶，大者直径约3.2CM，边缘有强化，部分内可见低密度坏死区。胆囊、胰腺、脾、左肾、肾上腺未见异常，右肾内示一囊性低密度灶，边界清。腹膜后胰头后方、门腔间隙、腹主动脉旁可见数个结节灶，大者短径约1.0CM。各咽壁不厚，双侧颈部未见肿大淋巴结影。腮腺及双侧甲状腺未见异常。骨窗显示T1椎体显示不均匀骨质破坏。</t>
-  </si>
-  <si>
-    <t>1.右肺下叶周围型肺癌较前2017-02-06相仿，伴双肺多发转移，部分较前相仿；2.右肺下叶间质性炎症，较前相仿；3.部分胸椎及邻近肋骨多发成骨性转移，较前相仿；4.所示甲状腺右叶病变，请结合相关检查；5.所示左肾囊肿。右肺下叶肿块，边缘毛刺，邻近胸膜牵拉，大小约为2.50CM×1.89CM，CT值约59HU，见血管集束。双肺内可见多发结节样及粟粒样密度影，大者径约0.4CM。右肺下叶斑片状高密度影，边界模糊。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。心脏大血管未见异常。部分上位胸椎椎体及附件密度增高。右乳腺钙化灶。所示甲状腺右叶增大，密度不均匀。所示左肾低密度灶。</t>
+    <t>1.结合临床,右乳癌术后改变;肝内多发占位,结合临床,考虑转移,较前(2015-6-25)部分缩小,部分增大,但坏死成分增多;T1椎体不均匀骨质破坏,考虑转移,较前变化不著2.脂肪肝;3.右肾囊肿;4.腹膜后淋巴结肿大,较前变化不著;5.双肺小结节灶,较前变化不著,建议观察。右乳术后,术区壁未见增厚及异常强化。右侧腋窝结构紊乱,未见占位性病变。左乳及腋窝内未见异常密度灶。双侧内乳区、双侧肺门及纵隔未见增大淋巴结。双肺野内可见数个小结节灶,大者直径约0.6CM,边界欠清。肝脏密度普遍性减低,实质内见数个结节灶,大者直径约3.2CM,边缘有强化,部分内可见低密度坏死区。胆囊、胰腺、脾、左肾、肾上腺未见异常,右肾内示一囊性低密度灶,边界清。腹膜后胰头后方、门腔间隙、腹主动脉旁可见数个结节灶,大者短径约1.0CM。各咽壁不厚,双侧颈部未见肿大淋巴结影。腮腺及双侧甲状腺未见异常。骨窗显示T1椎体显示不均匀骨质破坏。</t>
+  </si>
+  <si>
+    <t>1.右肺下叶周围型肺癌较前2017-02-06相仿,伴双肺多发转移,部分较前相仿;2.右肺下叶间质性炎症,较前相仿;3.部分胸椎及邻近肋骨多发成骨性转移,较前相仿;4.所示甲状腺右叶病变,请结合相关检查;5.所示左肾囊肿。右肺下叶肿块,边缘毛刺,邻近胸膜牵拉,大小约为2.50CM×1.89CM,CT值约59HU,见血管集束。双肺内可见多发结节样及粟粒样密度影,大者径约0.4CM。右肺下叶斑片状高密度影,边界模糊。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。心脏大血管未见异常。部分上位胸椎椎体及附件密度增高。右乳腺钙化灶。所示甲状腺右叶增大,密度不均匀。所示左肾低密度灶。</t>
   </si>
   <si>
     <t>2.50CM×1.89CM</t>
@@ -1436,7 +1436,7 @@
     <t>右侧胸膜,右侧腋窝,纵隔淋巴结,骨,胸3椎体,右侧多个肋骨</t>
   </si>
   <si>
-    <t>1.右肺门肿块，考虑肺癌可能，肿块由右肺上动脉供血，上腔静脉未见受侵，未见肺栓塞征象；2.双肺多发病变，纵隔淋巴结肿大，转移不除外，随诊；3.支气管炎，肺气肿；双侧胸膜增厚；4.心包增厚；5.部分椎体及肋骨、胸骨转移；双肺纹理稀疏，可见多发含气透亮影。右肺尖可见斑片状高密度影，边缘可见细毛刺，大小约为2.6CM×1.5CM，CT值约77HU，增强后可见明显强化；右肺下叶可见钙化影。左肺上叶舌段及左肺下叶內基底段可见片状高密度影。双肺可见多发小结节影。纵隔内可见多发增大的淋巴结；双胸腔无积液征象，双侧胸膜增厚。心脏不大，部分大血管见钙化斑。心包增厚。部分椎体及肋骨、胸骨可见多发斑片状致密影。血管重建示右肺上叶病灶由右肺上动脉供血，上腔静脉未见受侵，双侧肺动脉未见明显瘤栓形成。</t>
+    <t>1.右肺门肿块,考虑肺癌可能,肿块由右肺上动脉供血,上腔静脉未见受侵,未见肺栓塞征象;2.双肺多发病变,纵隔淋巴结肿大,转移不除外,随诊;3.支气管炎,肺气肿;双侧胸膜增厚;4.心包增厚;5.部分椎体及肋骨、胸骨转移;双肺纹理稀疏,可见多发含气透亮影。右肺尖可见斑片状高密度影,边缘可见细毛刺,大小约为2.6CM×1.5CM,CT值约77HU,增强后可见明显强化;右肺下叶可见钙化影。左肺上叶舌段及左肺下叶內基底段可见片状高密度影。双肺可见多发小结节影。纵隔内可见多发增大的淋巴结;双胸腔无积液征象,双侧胸膜增厚。心脏不大,部分大血管见钙化斑。心包增厚。部分椎体及肋骨、胸骨可见多发斑片状致密影。血管重建示右肺上叶病灶由右肺上动脉供血,上腔静脉未见受侵,双侧肺动脉未见明显瘤栓形成。</t>
   </si>
   <si>
     <t>2.6CM×1.5CM</t>
@@ -1445,19 +1445,19 @@
     <t>双肺,纵隔淋巴结,椎体,肋骨,胸骨</t>
   </si>
   <si>
-    <t>1.结合临床，左乳癌治疗后改变，胸肌局部强化灶，较前(2016-11-7)增大，考虑转移；左腋窝及左锁骨上小淋巴结；肝转移治疗后，变化不著；骨转移，变化不著2.右乳钙化灶；右腋窝略增大淋巴结，变化不著3.双肺纤维灶4.甲状腺低密度灶5.颅脑CT扫描未见明显异常左乳结构紊乱，强化欠均质，局部见可见片状较低密度灶，边缘清晰，左腋窝结构紊乱并可见片状影，左腋窝(5-21)及左侧锁骨上示大者短径约0.5CM小淋巴结。左侧胸肌局部见结节状强化灶(如5-11、14)，边缘模糊，大者长径约3.1CM。右乳可见数个大小不一的钙化灶，右腋窝内可见数个结节灶，大者短径约0.6CM。双肺内示少许索条影。纵隔内未见明显肿大淋巴结。甲状腺内示低密度灶。肝内S4段示一低密度灶，边缘有强化，直径约0.6CM。余肝内示小类囊性密度灶。胆囊胰脾双肾未见异常。腹腔及腹膜后未见肿大淋巴结。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。胸骨、部分椎骨及左第五后肋显示骨质破坏。</t>
+    <t>1.结合临床,左乳癌治疗后改变,胸肌局部强化灶,较前(2016-11-7)增大,考虑转移;左腋窝及左锁骨上小淋巴结;肝转移治疗后,变化不著;骨转移,变化不著2.右乳钙化灶;右腋窝略增大淋巴结,变化不著3.双肺纤维灶4.甲状腺低密度灶5.颅脑CT扫描未见明显异常左乳结构紊乱,强化欠均质,局部见可见片状较低密度灶,边缘清晰,左腋窝结构紊乱并可见片状影,左腋窝(5-21)及左侧锁骨上示大者短径约0.5CM小淋巴结。左侧胸肌局部见结节状强化灶(如5-11、14),边缘模糊,大者长径约3.1CM。右乳可见数个大小不一的钙化灶,右腋窝内可见数个结节灶,大者短径约0.6CM。双肺内示少许索条影。纵隔内未见明显肿大淋巴结。甲状腺内示低密度灶。肝内S4段示一低密度灶,边缘有强化,直径约0.6CM。余肝内示小类囊性密度灶。胆囊胰脾双肾未见异常。腹腔及腹膜后未见肿大淋巴结。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。胸骨、部分椎骨及左第五后肋显示骨质破坏。</t>
   </si>
   <si>
     <t>胸肌,肝,骨</t>
   </si>
   <si>
-    <t>1.结合临床，左乳癌治疗后改变，胸肌局部强化结节灶，建议观察2.肝转移瘤，较前缩小；胸骨、肋骨转移2.右腋窝略增大淋巴结左乳结构紊乱，局部见可见片状较低密度灶，边缘清晰，增强后强化不著。左侧胸肌局部似见强化结节灶(5-7、10)，边缘模糊，大者直径约1.1CM。右乳可见数个大小不一的钙化灶，右腋窝内可见数个结节灶，大者短径约0.6CM。双肺野清，其内未见异常密度影。纵隔内未见明显肿大淋巴结。肝内S4段示一低密度灶，边缘有强化，直径约0.6CM。余肝实质未见异常。胆囊胰脾双肾未见异常。腹腔及腹膜后未见明显肿大淋巴结。胸骨、左第五后肋显示骨质破坏。</t>
+    <t>1.结合临床,左乳癌治疗后改变,胸肌局部强化结节灶,建议观察2.肝转移瘤,较前缩小;胸骨、肋骨转移2.右腋窝略增大淋巴结左乳结构紊乱,局部见可见片状较低密度灶,边缘清晰,增强后强化不著。左侧胸肌局部似见强化结节灶(5-7、10),边缘模糊,大者直径约1.1CM。右乳可见数个大小不一的钙化灶,右腋窝内可见数个结节灶,大者短径约0.6CM。双肺野清,其内未见异常密度影。纵隔内未见明显肿大淋巴结。肝内S4段示一低密度灶,边缘有强化,直径约0.6CM。余肝实质未见异常。胆囊胰脾双肾未见异常。腹腔及腹膜后未见明显肿大淋巴结。胸骨、左第五后肋显示骨质破坏。</t>
   </si>
   <si>
     <t>肝,胸骨,肋骨</t>
   </si>
   <si>
-    <t>左肺下叶见不规则团块影，呈浅分叶，与邻近胸膜关系密切，较大截面约5.2CM×4.5CM，其内密度欠均匀，CT值约16HU。右肺上叶(HR178)、左肺上叶(169)见高密度结节影，边界清晰，大者径约0.7CM。两肺支气管血管束模糊，双肺另见多发条索影。两肺门区未见异常。纵隔内未见多发小淋巴结，大者短径约0.75CM。两胸腔无积液征象。心脏大血管未见异常。双侧甲状腺密度不均匀减低，甲状腺左叶见结节样致密影。1.左肺下叶周围型肺癌，双肺上叶小结节，转移不除外，请结合临床、详查；2.支气管炎征象，双肺多发条索灶；3.所示双侧甲状腺病变，请结合相关检查。</t>
+    <t>左肺下叶见不规则团块影,呈浅分叶,与邻近胸膜关系密切,较大截面约5.2CM×4.5CM,其内密度欠均匀,CT值约16HU。右肺上叶(HR178)、左肺上叶(169)见高密度结节影,边界清晰,大者径约0.7CM。两肺支气管血管束模糊,双肺另见多发条索影。两肺门区未见异常。纵隔内未见多发小淋巴结,大者短径约0.75CM。两胸腔无积液征象。心脏大血管未见异常。双侧甲状腺密度不均匀减低,甲状腺左叶见结节样致密影。1.左肺下叶周围型肺癌,双肺上叶小结节,转移不除外,请结合临床、详查;2.支气管炎征象,双肺多发条索灶;3.所示双侧甲状腺病变,请结合相关检查。</t>
   </si>
   <si>
     <t>5.2CM×4.5CM</t>
@@ -1466,25 +1466,25 @@
     <t>双肺上叶</t>
   </si>
   <si>
-    <t>右肺上叶可见团块状高密度影，较大截面大小约5.87CM×5.39CM，边缘可见浅分叶，平扫CT值约32HU，增强扫描呈不均匀强化，右肺上叶尖段支气管闭塞，前段及后段支气管管壁略厚，管腔狭窄，上腔静脉受压、管腔狭窄；双肺多发索条灶，左肺下叶见条片状模糊影；左肺下叶近斜裂(56)可见小结节影，径约0.3CM。双肺见多发含气空腔。纵隔内可见增大的淋巴结，部分融合，短径约1.76CM；右侧锁骨上淋巴结增大，大者短径约0.8CM。右侧胸腔可见弧形液体密度影。心包内可见环形液体密度影，大血管未见异常。1.右肺上叶团块影，考虑中央型肺癌，较前2016-11-18CT相仿，纵隔、右侧锁骨上淋巴结转移，较前变化不大；上腔静脉管腔狭窄，较前相仿；请结合临床；2.双肺肺气肿；双肺索条灶；左肺下叶少许炎性改变，较前相仿；3.心包积液，较前相仿；4.左侧斜裂小结节，较前相仿；5.右侧胸腔积液，较前新发。</t>
+    <t>右肺上叶可见团块状高密度影,较大截面大小约5.87CM×5.39CM,边缘可见浅分叶,平扫CT值约32HU,增强扫描呈不均匀强化,右肺上叶尖段支气管闭塞,前段及后段支气管管壁略厚,管腔狭窄,上腔静脉受压、管腔狭窄;双肺多发索条灶,左肺下叶见条片状模糊影;左肺下叶近斜裂(56)可见小结节影,径约0.3CM。双肺见多发含气空腔。纵隔内可见增大的淋巴结,部分融合,短径约1.76CM;右侧锁骨上淋巴结增大,大者短径约0.8CM。右侧胸腔可见弧形液体密度影。心包内可见环形液体密度影,大血管未见异常。1.右肺上叶团块影,考虑中央型肺癌,较前2016-11-18CT相仿,纵隔、右侧锁骨上淋巴结转移,较前变化不大;上腔静脉管腔狭窄,较前相仿;请结合临床;2.双肺肺气肿;双肺索条灶;左肺下叶少许炎性改变,较前相仿;3.心包积液,较前相仿;4.左侧斜裂小结节,较前相仿;5.右侧胸腔积液,较前新发。</t>
   </si>
   <si>
     <t>5.87CM×5.39CM</t>
   </si>
   <si>
-    <t>右肺下叶可见不规则稍低密度影，与右肺门分界不清，边缘毛糙，CT值约为37HU，其内密度不均，大小约为3.8CM×2.6CM，邻近肺组织可见模糊影，右肺下叶内基底段支气管截断，右肺胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影，边缘毛糙，大者径约为0.79CM；纵隔内未见增大淋巴结影。右侧胸腔、心包内见少许液性密度影。甲状腺明显肿大。1右肺下叶肺癌，并双肺、右胸膜多发转移，与2015-06-23CT片对比，肿块略减小，双肺多发转移较前减少、减小；右侧胸腔积液，较前减少；心包积液，较前相仿；2.甲状腺饱满。</t>
+    <t>右肺下叶可见不规则稍低密度影,与右肺门分界不清,边缘毛糙,CT值约为37HU,其内密度不均,大小约为3.8CM×2.6CM,邻近肺组织可见模糊影,右肺下叶内基底段支气管截断,右肺胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影,边缘毛糙,大者径约为0.79CM;纵隔内未见增大淋巴结影。右侧胸腔、心包内见少许液性密度影。甲状腺明显肿大。1右肺下叶肺癌,并双肺、右胸膜多发转移,与2015-06-23CT片对比,肿块略减小,双肺多发转移较前减少、减小;右侧胸腔积液,较前减少;心包积液,较前相仿;2.甲状腺饱满。</t>
   </si>
   <si>
     <t>3.8CM×2.6CM</t>
   </si>
   <si>
-    <t>左乳术后，术区壁未见增厚及异常强化。左侧腋窝结构紊乱，未见异常强化灶。右乳及右侧腋窝未见异常密度灶。纵隔内2R、2L、4R、4L、7区及双肺门示多发结节灶，大者短径约0.7CM。双肺野内散在多发结节灶，大者短径约1.6CM。胸廓骨质未见破坏。肝内散在多发结节灶及肿块影，边缘强化，大者直径约5.7CM。胆囊、胰腺、脾、双肾、肾上腺未见异常，腹腔肝门区、腹膜后门腔间隙、腹主动脉旁示多发结节灶，大者短径约1.4CM。结合临床，左乳癌术后改变；双肺多发转移；肝多发转移；腹腔腹膜后淋巴结转移；纵隔淋巴结略增大</t>
+    <t>左乳术后,术区壁未见增厚及异常强化。左侧腋窝结构紊乱,未见异常强化灶。右乳及右侧腋窝未见异常密度灶。纵隔内2R、2L、4R、4L、7区及双肺门示多发结节灶,大者短径约0.7CM。双肺野内散在多发结节灶,大者短径约1.6CM。胸廓骨质未见破坏。肝内散在多发结节灶及肿块影,边缘强化,大者直径约5.7CM。胆囊、胰腺、脾、双肾、肾上腺未见异常,腹腔肝门区、腹膜后门腔间隙、腹主动脉旁示多发结节灶,大者短径约1.4CM。结合临床,左乳癌术后改变;双肺多发转移;肝多发转移;腹腔腹膜后淋巴结转移;纵隔淋巴结略增大</t>
   </si>
   <si>
     <t>双肺,肝,腹腔腹膜后淋巴结</t>
   </si>
   <si>
-    <t>1.右肺上叶结节，纵隔内、右肺门多发肿大淋巴结，考虑右上肺癌伴肺门及纵隔淋巴结转移，较前片(2017-1-9)未见明显变化，请结合临床；2.支气管炎，肺气肿，双肺轻度间质性改变；3.右肺上叶粟粒灶，双肺下叶小结节，请随诊；4.肝囊肿；5.右侧肾上腺结节，考虑腺瘤可能，请随诊。双肺支气管血管束稍增强，双肺胸膜下小叶间隔增厚，呈网格状改变，双肺胸膜下可见多发类圆形透亮影。右肺上叶见高密度结节影，长径约1.54CM，边缘毛糙，分叶状，平扫CT值约-13HU，增强后三期CT值约37、12、13HU。右肺上叶前段(23)可见粟粒影；右肺下叶后基底段(60)、左肺下叶后基底段(44)可见结节影，大者径约0.5CM；所示气管支气管影通畅。纵隔、右肺门见多发肿大淋巴结影，大者短径约3.4CM，平扫CT值约40HU，增强后均匀强化，三期CT值约74、66、68HU。两胸腔未见积液征象。心脏不大，主动脉管壁可见弧形致密影。所示肝内见多发类圆形低密度影，增强后未见强化。右侧肾上腺见低密度结节影，径约1.9CM，平扫CT值约19HU，增强后三期CT值约38、58、35HU。</t>
+    <t>1.右肺上叶结节,纵隔内、右肺门多发肿大淋巴结,考虑右上肺癌伴肺门及纵隔淋巴结转移,较前片(2017-1-9)未见明显变化,请结合临床;2.支气管炎,肺气肿,双肺轻度间质性改变;3.右肺上叶粟粒灶,双肺下叶小结节,请随诊;4.肝囊肿;5.右侧肾上腺结节,考虑腺瘤可能,请随诊。双肺支气管血管束稍增强,双肺胸膜下小叶间隔增厚,呈网格状改变,双肺胸膜下可见多发类圆形透亮影。右肺上叶见高密度结节影,长径约1.54CM,边缘毛糙,分叶状,平扫CT值约-13HU,增强后三期CT值约37、12、13HU。右肺上叶前段(23)可见粟粒影;右肺下叶后基底段(60)、左肺下叶后基底段(44)可见结节影,大者径约0.5CM;所示气管支气管影通畅。纵隔、右肺门见多发肿大淋巴结影,大者短径约3.4CM,平扫CT值约40HU,增强后均匀强化,三期CT值约74、66、68HU。两胸腔未见积液征象。心脏不大,主动脉管壁可见弧形致密影。所示肝内见多发类圆形低密度影,增强后未见强化。右侧肾上腺见低密度结节影,径约1.9CM,平扫CT值约19HU,增强后三期CT值约38、58、35HU。</t>
   </si>
   <si>
     <t>1.54CM</t>
@@ -1493,7 +1493,7 @@
     <t>肺门及纵隔淋巴结</t>
   </si>
   <si>
-    <t>1.左下肺周围型肺癌，对比2012-08-15片，病变略增大；左侧膈胸膜局限性增厚，较前片新发；左肺上叶舌段、右肺下叶后基底段片状模糊影，较前片增大；2.纵隔多发增大淋巴结，对比前片变化不大；3.胸椎、左侧肋骨、胸骨及右侧锁骨多发转移；4.甲状腺占位，腹部改变，请详查。双肺透过度欠均，左下肺可见一肿块影，不规则，边界尚清，最大层面3.79CM×2.41CM，CT值约19HU，局部斜裂牵拉征象；左肺下叶基底段部分支气管略窄；左肺上叶舌段、右肺下叶基底段可见片状化模糊影。纵隔见多发小淋巴结，大者短径约0.76CM。右侧膈胸膜局限性增厚，局部椎体及肋骨密度不均匀。心脏大血管未见异常。右侧锁骨、胸骨、第3胸椎左侧横突、第4、5、7、8、10胸椎椎体内可见结节状高密度影，第11胸椎椎体骨质密度不均匀减低，左侧第4、5、7后肋骨质密度增高。甲状腺左叶见类圆形低密度影，边界欠清，大小约为0.85CM，CT值约为28HU。肝右叶多发低密度灶，右侧肾上腺区可见软组织密度影。左侧肾上腺内支似见结节影。</t>
+    <t>1.左下肺周围型肺癌,对比2012-08-15片,病变略增大;左侧膈胸膜局限性增厚,较前片新发;左肺上叶舌段、右肺下叶后基底段片状模糊影,较前片增大;2.纵隔多发增大淋巴结,对比前片变化不大;3.胸椎、左侧肋骨、胸骨及右侧锁骨多发转移;4.甲状腺占位,腹部改变,请详查。双肺透过度欠均,左下肺可见一肿块影,不规则,边界尚清,最大层面3.79CM×2.41CM,CT值约19HU,局部斜裂牵拉征象;左肺下叶基底段部分支气管略窄;左肺上叶舌段、右肺下叶基底段可见片状化模糊影。纵隔见多发小淋巴结,大者短径约0.76CM。右侧膈胸膜局限性增厚,局部椎体及肋骨密度不均匀。心脏大血管未见异常。右侧锁骨、胸骨、第3胸椎左侧横突、第4、5、7、8、10胸椎椎体内可见结节状高密度影,第11胸椎椎体骨质密度不均匀减低,左侧第4、5、7后肋骨质密度增高。甲状腺左叶见类圆形低密度影,边界欠清,大小约为0.85CM,CT值约为28HU。肝右叶多发低密度灶,右侧肾上腺区可见软组织密度影。左侧肾上腺内支似见结节影。</t>
   </si>
   <si>
     <t>3.79CM×2.41CM</t>
@@ -1502,25 +1502,25 @@
     <t>胸椎,左侧肋骨,胸骨,右侧锁骨</t>
   </si>
   <si>
-    <t>1.结合临床，右乳癌术后改变；肝内多发占位，考虑转移，较前(2015-08-12)片部分略增大，部分变化不著；腰椎L1椎体不均匀骨质破坏，考虑转移，较前变化不著2.脂肪肝3.右肾囊肿4.腹膜后淋巴结肿大，较前部分略缩小，部分略饱满，总体变化不著5.双肺略示类结节灶，较前变化不著6.双肺纤维灶右乳术后，术区壁未见增厚及异常强化。右侧腋窝结构紊乱，未见占位性病变。左乳及腋窝内未见异常密度灶。双侧内乳区、双侧肺门及纵隔未见增大淋巴结。双肺野内略示类结节影(图5-19等)。双肺并可见少许高密度条索影。肝脏密度普遍性减低，实质内见数个结节灶，大者直径约3.5CM，边缘有强化，部分内可见低密度坏死区。胆囊、胰腺、脾、左肾、肾上腺未见异常，右肾内示一囊性低密度灶，边界清。腹膜后胰头后方、门腔间隙、腹主动脉旁可见数个结节灶，大者短径约0.9CM。骨窗显示腰椎L1椎体显示不均匀骨质破坏。</t>
+    <t>1.结合临床,右乳癌术后改变;肝内多发占位,考虑转移,较前(2015-08-12)片部分略增大,部分变化不著;腰椎L1椎体不均匀骨质破坏,考虑转移,较前变化不著2.脂肪肝3.右肾囊肿4.腹膜后淋巴结肿大,较前部分略缩小,部分略饱满,总体变化不著5.双肺略示类结节灶,较前变化不著6.双肺纤维灶右乳术后,术区壁未见增厚及异常强化。右侧腋窝结构紊乱,未见占位性病变。左乳及腋窝内未见异常密度灶。双侧内乳区、双侧肺门及纵隔未见增大淋巴结。双肺野内略示类结节影(图5-19等)。双肺并可见少许高密度条索影。肝脏密度普遍性减低,实质内见数个结节灶,大者直径约3.5CM,边缘有强化,部分内可见低密度坏死区。胆囊、胰腺、脾、左肾、肾上腺未见异常,右肾内示一囊性低密度灶,边界清。腹膜后胰头后方、门腔间隙、腹主动脉旁可见数个结节灶,大者短径约0.9CM。骨窗显示腰椎L1椎体显示不均匀骨质破坏。</t>
   </si>
   <si>
     <t>肝,腰椎L1椎体</t>
   </si>
   <si>
-    <t>对比2011-06-14CT：1.右肺下叶不规则结节，考虑周围型肺癌，较前体积增大；2.双肺散在炎症，右肺为著，右肺间质纤维化；较前进展；3.双肺上叶陈旧性病变；较前相仿；4.胸骨、部分胸椎及双侧肋骨多发转移，较前新发；5.降主动脉管壁钙化，部分钙化斑内移；较前变化不大，请随诊。双肺纹理增强，右肺小叶间隔增厚、紊乱；双肺内见多发斑片状模糊高密度影，以右肺为著，右肺下叶后基底段可见一结节样高密度影，分叶、毛刺，邻近血管可见束集，病变大小约为2.8CM×1.9CM；双肺上叶见结节状及索条状高密度影；所示气管支气管影正常。纵隔内未见异常增大的淋巴结。双侧胸膜增厚；两胸腔无积液征象。心脏不大，降主动脉管壁见钙化影，部分钙化斑内移。胸骨、部分胸椎及双侧肋骨见斑片状高密度影。</t>
+    <t>对比2011-06-14CT:1.右肺下叶不规则结节,考虑周围型肺癌,较前体积增大;2.双肺散在炎症,右肺为著,右肺间质纤维化;较前进展;3.双肺上叶陈旧性病变;较前相仿;4.胸骨、部分胸椎及双侧肋骨多发转移,较前新发;5.降主动脉管壁钙化,部分钙化斑内移;较前变化不大,请随诊。双肺纹理增强,右肺小叶间隔增厚、紊乱;双肺内见多发斑片状模糊高密度影,以右肺为著,右肺下叶后基底段可见一结节样高密度影,分叶、毛刺,邻近血管可见束集,病变大小约为2.8CM×1.9CM;双肺上叶见结节状及索条状高密度影;所示气管支气管影正常。纵隔内未见异常增大的淋巴结。双侧胸膜增厚;两胸腔无积液征象。心脏不大,降主动脉管壁见钙化影,部分钙化斑内移。胸骨、部分胸椎及双侧肋骨见斑片状高密度影。</t>
   </si>
   <si>
     <t>2.8CM×1.9CM</t>
   </si>
   <si>
-    <t>1.右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移，肿块较2014-07-23增大；2.右肺下叶炎症，较前相仿；3.所示多发骨转移征象，右侧第10后肋病理性骨折，胸2椎体内及胸骨柄内病灶较前范围增大，密度增高。右肺下叶背段(S29)见类圆形肿块影，约2.12CM×1.82CM，边缘不规整，可见多发毛刺影，并见血管影进入，牵拉邻近胸膜，其CT值约35HU。右肺下叶见斑片影(S37)。右肺门区及纵隔内可见多发肿大淋巴结影，大者短径约2.14CM，双侧胸腔未见积液征象。心脏大血管未见异常。双侧第10后肋、胸骨柄及胸骨体内可见高密度影，胸2椎体内可见结节状高密度影，胸2附件骨质可见溶骨性破坏区。</t>
+    <t>1.右肺下叶背段周围型肺癌并右肺门、纵隔淋巴结转移,肿块较2014-07-23增大;2.右肺下叶炎症,较前相仿;3.所示多发骨转移征象,右侧第10后肋病理性骨折,胸2椎体内及胸骨柄内病灶较前范围增大,密度增高。右肺下叶背段(S29)见类圆形肿块影,约2.12CM×1.82CM,边缘不规整,可见多发毛刺影,并见血管影进入,牵拉邻近胸膜,其CT值约35HU。右肺下叶见斑片影(S37)。右肺门区及纵隔内可见多发肿大淋巴结影,大者短径约2.14CM,双侧胸腔未见积液征象。心脏大血管未见异常。双侧第10后肋、胸骨柄及胸骨体内可见高密度影,胸2椎体内可见结节状高密度影,胸2附件骨质可见溶骨性破坏区。</t>
   </si>
   <si>
     <t>2.12CM×1.82CM</t>
   </si>
   <si>
-    <t>1.左乳占位，考虑乳癌，左腋窝淋巴结转移2.左乳局部腺体致密、强化显著，建议进一步检查2.双肺类结节灶，建议观察；双肺钙化灶左乳外下象限可见不规则结节灶，大小约1.8CM×0.9CM，边缘分叶，增强扫描呈较显著强化。另左乳内上象限腺体较致密，增强扫描强化较著。左腋窝示肿大淋巴结，短径约1.6CM。右乳未见异常。右腋窝、内乳及纵隔未见明显肿大淋巴结。双肺示少许类结节影(图3-24、39等)，边缘模糊。余双肺野示少许钙化灶。</t>
+    <t>1.左乳占位,考虑乳癌,左腋窝淋巴结转移2.左乳局部腺体致密、强化显著,建议进一步检查2.双肺类结节灶,建议观察;双肺钙化灶左乳外下象限可见不规则结节灶,大小约1.8CM×0.9CM,边缘分叶,增强扫描呈较显著强化。另左乳内上象限腺体较致密,增强扫描强化较著。左腋窝示肿大淋巴结,短径约1.6CM。右乳未见异常。右腋窝、内乳及纵隔未见明显肿大淋巴结。双肺示少许类结节影(图3-24、39等),边缘模糊。余双肺野示少许钙化灶。</t>
   </si>
   <si>
     <t>1.8CM×0.9CM</t>
@@ -1529,7 +1529,7 @@
     <t>左腋窝淋巴结</t>
   </si>
   <si>
-    <t>左肺上叶舌段及下叶基底段可见不规则团块影，大者约2.94CM×2.16CM，CT值约40HU，周围可见血管集束征及毛刺征。双肺可见多发结节影，大者径约2.5CM。双肺门、纵隔内可见多发肿大淋巴结影。双侧胸腔内见液性密度影。冠脉可见致密影。颈7-胸1椎可见低密度影。1、左肺上叶肺癌，双肺门、纵隔淋巴结转移，双肺多发转移瘤，两肺淋巴道转移，对比2017.1.16片进展；2、双侧胸腔积液，较前新发；3、所示颈7-胸1溶骨性转移。</t>
+    <t>左肺上叶舌段及下叶基底段可见不规则团块影,大者约2.94CM×2.16CM,CT值约40HU,周围可见血管集束征及毛刺征。双肺可见多发结节影,大者径约2.5CM。双肺门、纵隔内可见多发肿大淋巴结影。双侧胸腔内见液性密度影。冠脉可见致密影。颈7-胸1椎可见低密度影。1、左肺上叶肺癌,双肺门、纵隔淋巴结转移,双肺多发转移瘤,两肺淋巴道转移,对比2017.1.16片进展;2、双侧胸腔积液,较前新发;3、所示颈7-胸1溶骨性转移。</t>
   </si>
   <si>
     <t>2.94CM×2.16CM</t>
@@ -1538,19 +1538,19 @@
     <t>双肺,颈7-胸1椎,双肺门,纵隔淋巴结,两肺淋巴道,骨</t>
   </si>
   <si>
-    <t>左乳术后缺如，部分胸肌存在，术区皮肤及软组织略增厚，增强后不均匀强化；左侧腋窝术后，见多发淋巴结，大者短径约0.6CM。右乳及右侧腋窝未见明确异常。左侧内乳区见短径不足0.5CM小淋巴结。左肺上叶胸膜下可见类结节灶，直径约0.2CM。左肺下叶(5-56)见小类结节，直径不足0.5CM。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。胸腔内未见积液。胸廓诸骨未见骨质破坏。肝脏形态、大小可，实质内未见异常。肝内外胆管未见扩张。胆囊不大，壁不厚。胰腺、脾、双侧肾上腺未见异常。右肾见斑片状低密度，边缘欠清。腹膜后见短径不足0.5CM小淋巴结。部分椎体密度减低。1.左乳癌术后复发并左腋窝多发淋巴结转移，较前(2016-11-8)均好转；左侧内乳区小淋巴结2.左肺上叶结节灶，较前缩小；左肺下叶小类结节，建议观察3.右肾低密度灶，建议观察；腹膜后小淋巴结4.椎体部分密度减低，请结合临床</t>
-  </si>
-  <si>
-    <t>右肺上叶尖段支气管周围可见异常密度结节影，呈分叶状，最大断面大小约为2.6CM×2.1CM，CT值约为34HU；双肺野可见多个高密度粟粒影与小结节影，大小不一；两肺门区未见异常；所示气管支气管影正常；纵隔内见异常增大的淋巴结；两胸腔无积液征象；心脏大血管未见异常。右肺上叶尖段周围型肺癌，纵隔淋巴结转移，双肺多发粟粒灶与小结节，考虑转移可能性大，随诊。</t>
-  </si>
-  <si>
-    <t>1.右乳癌术后改变，多发肝转移瘤，多发骨转移瘤，颅脑多发转移2.左乳内多发结节灶，转移不能除外3.双肺炎症及纤维灶，双侧胸腔及心包腔内少量积液4.左肺类结节灶，建议观察5.纵隔淋巴结肿大6.胆囊炎7.右肾小囊肿右乳术后缺如，部分胸肌存在，术区未见明显增厚及异常强化；右侧腋窝术后，结构紊乱。左乳内可见散在多发强化结节灶，边界较清晰，大者直径约1.0CM，增强后呈显著强化。左侧腋窝未见明确异常。双肺内可见散在片絮状及条索状密度增高影；左肺内可见散在类结节灶，边界较模糊。双侧各叶、段支气管通畅。纵隔内2R及3A可见肿大淋巴结，大者短径约0.7CM。双侧胸腔内及心包腔内可见少量液性密度影。肝脏实质内可见散在多发类圆形低密度灶，边缘较模糊，大者直径约1.3CM，轻度强化。胆囊壁增厚并强化。胰、脾、左肾及双侧肾上腺未见异常；右肾实质内可见散在小囊性密度灶，边界清晰，未见强化。腹腔及腹膜后未见明显肿大淋巴结。膀胱充盈可，壁不厚。子宫形态大小密度可，宫颈略增大，未见异常强化。盆腔内未见积液及肿大淋巴结。鼻咽、口咽及喉形态可，诸壁不厚。双侧副鼻窦充气良好。甲状腺双侧叶形态大小密度可。双颈部肌间隙清晰，未见明显肿大淋巴结。颅脑实质内可见散在多发软组织密度灶，边界较清晰，大者直径约1.7CM，增强后呈较显著不均质强化，部分周围可见低密度水肿带。脑室、池无扩张，脑沟、裂无增深，中线结构居中。颅骨诸骨质未见破坏。骨窗示：胸骨、双侧锁骨头、双侧肱骨头、双侧肩胛骨、多发肋骨、多发颈胸腰椎椎体、双侧髂骨、骶骨、耻骨、坐骨、双侧股骨头示成骨性骨质破坏。</t>
+    <t>左乳术后缺如,部分胸肌存在,术区皮肤及软组织略增厚,增强后不均匀强化;左侧腋窝术后,见多发淋巴结,大者短径约0.6CM。右乳及右侧腋窝未见明确异常。左侧内乳区见短径不足0.5CM小淋巴结。左肺上叶胸膜下可见类结节灶,直径约0.2CM。左肺下叶(5-56)见小类结节,直径不足0.5CM。双肺门及纵隔内未见肿大淋巴结。双侧胸膜未见增厚。胸腔内未见积液。胸廓诸骨未见骨质破坏。肝脏形态、大小可,实质内未见异常。肝内外胆管未见扩张。胆囊不大,壁不厚。胰腺、脾、双侧肾上腺未见异常。右肾见斑片状低密度,边缘欠清。腹膜后见短径不足0.5CM小淋巴结。部分椎体密度减低。1.左乳癌术后复发并左腋窝多发淋巴结转移,较前(2016-11-8)均好转;左侧内乳区小淋巴结2.左肺上叶结节灶,较前缩小;左肺下叶小类结节,建议观察3.右肾低密度灶,建议观察;腹膜后小淋巴结4.椎体部分密度减低,请结合临床</t>
+  </si>
+  <si>
+    <t>右肺上叶尖段支气管周围可见异常密度结节影,呈分叶状,最大断面大小约为2.6CM×2.1CM,CT值约为34HU;双肺野可见多个高密度粟粒影与小结节影,大小不一;两肺门区未见异常;所示气管支气管影正常;纵隔内见异常增大的淋巴结;两胸腔无积液征象;心脏大血管未见异常。右肺上叶尖段周围型肺癌,纵隔淋巴结转移,双肺多发粟粒灶与小结节,考虑转移可能性大,随诊。</t>
+  </si>
+  <si>
+    <t>1.右乳癌术后改变,多发肝转移瘤,多发骨转移瘤,颅脑多发转移2.左乳内多发结节灶,转移不能除外3.双肺炎症及纤维灶,双侧胸腔及心包腔内少量积液4.左肺类结节灶,建议观察5.纵隔淋巴结肿大6.胆囊炎7.右肾小囊肿右乳术后缺如,部分胸肌存在,术区未见明显增厚及异常强化;右侧腋窝术后,结构紊乱。左乳内可见散在多发强化结节灶,边界较清晰,大者直径约1.0CM,增强后呈显著强化。左侧腋窝未见明确异常。双肺内可见散在片絮状及条索状密度增高影;左肺内可见散在类结节灶,边界较模糊。双侧各叶、段支气管通畅。纵隔内2R及3A可见肿大淋巴结,大者短径约0.7CM。双侧胸腔内及心包腔内可见少量液性密度影。肝脏实质内可见散在多发类圆形低密度灶,边缘较模糊,大者直径约1.3CM,轻度强化。胆囊壁增厚并强化。胰、脾、左肾及双侧肾上腺未见异常;右肾实质内可见散在小囊性密度灶,边界清晰,未见强化。腹腔及腹膜后未见明显肿大淋巴结。膀胱充盈可,壁不厚。子宫形态大小密度可,宫颈略增大,未见异常强化。盆腔内未见积液及肿大淋巴结。鼻咽、口咽及喉形态可,诸壁不厚。双侧副鼻窦充气良好。甲状腺双侧叶形态大小密度可。双颈部肌间隙清晰,未见明显肿大淋巴结。颅脑实质内可见散在多发软组织密度灶,边界较清晰,大者直径约1.7CM,增强后呈较显著不均质强化,部分周围可见低密度水肿带。脑室、池无扩张,脑沟、裂无增深,中线结构居中。颅骨诸骨质未见破坏。骨窗示:胸骨、双侧锁骨头、双侧肱骨头、双侧肩胛骨、多发肋骨、多发颈胸腰椎椎体、双侧髂骨、骶骨、耻骨、坐骨、双侧股骨头示成骨性骨质破坏。</t>
   </si>
   <si>
     <t>肝,骨,颅脑,左乳</t>
   </si>
   <si>
-    <t>双肺密度不均匀略减低，见透亮影及多发壁薄界清无肺纹理区。双肺纹理稀疏、模糊。右肺体积小；右肺内散在小片状高密度灶，边界模糊及多发蜂窝状透亮区；右上肺纵隔旁可见软组织团块影，边界欠光整，CT值约35HU，最大层面约6.23CM×4.60CM，其内见多发空洞及充气支气管征，空洞内壁欠规整，右肺上叶部分支气管受阻断，部分病灶纵隔窗可见钙化灶；纵隔右移、右肺门大，纵隔内可见多个增大的淋巴结，大者短径约1.13CM。双侧胸膜增厚。主动脉及冠状动脉内可见条片状致密影1.考虑右上肺癌(空洞形成)并右上肺阻塞性肺炎，纵隔与右肺门淋巴结转移；2.慢性支气管炎、肺气肿、肺大泡；3.双侧胸膜肥厚；4.胆囊结石。</t>
+    <t>双肺密度不均匀略减低,见透亮影及多发壁薄界清无肺纹理区。双肺纹理稀疏、模糊。右肺体积小;右肺内散在小片状高密度灶,边界模糊及多发蜂窝状透亮区;右上肺纵隔旁可见软组织团块影,边界欠光整,CT值约35HU,最大层面约6.23CM×4.60CM,其内见多发空洞及充气支气管征,空洞内壁欠规整,右肺上叶部分支气管受阻断,部分病灶纵隔窗可见钙化灶;纵隔右移、右肺门大,纵隔内可见多个增大的淋巴结,大者短径约1.13CM。双侧胸膜增厚。主动脉及冠状动脉内可见条片状致密影1.考虑右上肺癌(空洞形成)并右上肺阻塞性肺炎,纵隔与右肺门淋巴结转移;2.慢性支气管炎、肺气肿、肺大泡;3.双侧胸膜肥厚;4.胆囊结石。</t>
   </si>
   <si>
     <t>右上肺</t>
@@ -1562,13 +1562,13 @@
     <t>纵隔与右肺门淋巴结</t>
   </si>
   <si>
-    <t>左肺上叶脊柱旁见团片状软组织密度影，边缘呈浅分叶，范围约6.5CM×6.0CM，其内密度不均，CT值约20-40HU，增强以后三期CT值约60HU、75HU、64HU，主动脉弓部分受包绕。左肺上叶见数个小结节，直径约0.3CM。两肺纹理增强。所示气管支气管影正常。纵隔内见多个稍大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。1.左肺上叶团片灶，考虑周围型肺癌可能性大；纵隔内见多个稍大的淋巴结，请详查；2.左肺上叶小结节，转移不除外，请结合临床。3.右侧一后肋不整。</t>
+    <t>左肺上叶脊柱旁见团片状软组织密度影,边缘呈浅分叶,范围约6.5CM×6.0CM,其内密度不均,CT值约20-40HU,增强以后三期CT值约60HU、75HU、64HU,主动脉弓部分受包绕。左肺上叶见数个小结节,直径约0.3CM。两肺纹理增强。所示气管支气管影正常。纵隔内见多个稍大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。1.左肺上叶团片灶,考虑周围型肺癌可能性大;纵隔内见多个稍大的淋巴结,请详查;2.左肺上叶小结节,转移不除外,请结合临床。3.右侧一后肋不整。</t>
   </si>
   <si>
     <t>6.5CM×6.0CM</t>
   </si>
   <si>
-    <t>右肺下叶背段支气管截断，管壁外见不规则软组织密度肿块，边缘分叶状，不均匀强化，约60MM×41MM(IM29)；与肺门肿大淋巴结融合，包绕基底干支气管及部分中间段支气管，与中叶支气管近段关系密切，与右下肺动静脉关系密切；远端肺野见结节及斑片影。双上肺胸膜下见模糊结节(IM13、14)。\U007F纵隔2、4、7、9组见多发肿大淋巴结，较大约25MM×19MM(IM26)。锁骨上未见肿大淋巴结。\U007F双侧胸膜较光滑，未见胸水。\U007F扫描所及诸骨未见骨质破坏灶。\U007F扫及肝实质见多个模糊低强化小结节，左肾上腺可疑结节(IM56)。右肺下叶背段支气管截断伴软组织肿物，中心型肺癌可能大。远端肺转移，阻塞性改变。\U007F右肺门纵隔多发肿大淋巴结，考虑转移。\U007F双上肺胸膜下模糊小结节，性质待定。\U007F肝内多发模糊低强化结节，左肾上腺可疑结节；转移不除外，建议详查腹部。</t>
+    <t>右肺下叶背段支气管截断,管壁外见不规则软组织密度肿块,边缘分叶状,不均匀强化,约60MM×41MM(IM29);与肺门肿大淋巴结融合,包绕基底干支气管及部分中间段支气管,与中叶支气管近段关系密切,与右下肺动静脉关系密切;远端肺野见结节及斑片影。双上肺胸膜下见模糊结节(IM13、14)。\U007F纵隔2、4、7、9组见多发肿大淋巴结,较大约25MM×19MM(IM26)。锁骨上未见肿大淋巴结。\U007F双侧胸膜较光滑,未见胸水。\U007F扫描所及诸骨未见骨质破坏灶。\U007F扫及肝实质见多个模糊低强化小结节,左肾上腺可疑结节(IM56)。右肺下叶背段支气管截断伴软组织肿物,中心型肺癌可能大。远端肺转移,阻塞性改变。\U007F右肺门纵隔多发肿大淋巴结,考虑转移。\U007F双上肺胸膜下模糊小结节,性质待定。\U007F肝内多发模糊低强化结节,左肾上腺可疑结节;转移不除外,建议详查腹部。</t>
   </si>
   <si>
     <t>60MM×41MM</t>
@@ -1577,7 +1577,7 @@
     <t>肺,右肺门纵隔多发肿大淋巴结,左肾上腺</t>
   </si>
   <si>
-    <t>左上肺腺癌术后，对比2017-03-23、2017-02-27片：左肺上叶术后部分缺失，支气管残端未见明显肿物，局部可见条索状致密影，较前未见明显变化。左肺上叶及下叶见少许条索状密影，边界欠清，左侧胸膜稍增厚，局部见斑点状钙化灶，较前未见明显变化。气管及余支气管分支通畅。双侧腋窝、气管食管沟、右下气管旁、主动脉旁及左肺门见数个淋巴结，较大短径约8MM，边界尚清，部分内可见钙化灶，较前未见明显变化。双侧胸腔未见积液。右侧胸膜无增厚、粘连。甲状腺双叶及峡部增大，密度不均匀，右叶见一结节，直径约为5MM，边界尚清，增强扫描见轻度强化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀，增强扫描未见异常强化表现。肝内胆管、胆总管未见扩张，胆囊大小正常，未见结石。肝门区结构未见异常。门静脉主干及分支未见充盈缺损。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾未见明确异常。双肾上腺未见明确异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。腰2椎体右份见致密灶，边界尚清，密度不均匀，较前未见明显变化。左侧第6前肋骨质部分缺失。余骨质未见明显破坏。左上肺腺癌术后，对比2017-03-23、2017-02-27片：左上肺腺癌术后改变，未见明显肿瘤复发征象。左肺上叶及下叶少许纤维灶。双侧腋窝、纵隔及左肺门淋巴结并部分钙化，较前未见明显变化。腰2椎体病变，考虑转移瘤，较前未见明显变化。</t>
+    <t>左上肺腺癌术后,对比2017-03-23、2017-02-27片:左肺上叶术后部分缺失,支气管残端未见明显肿物,局部可见条索状致密影,较前未见明显变化。左肺上叶及下叶见少许条索状密影,边界欠清,左侧胸膜稍增厚,局部见斑点状钙化灶,较前未见明显变化。气管及余支气管分支通畅。双侧腋窝、气管食管沟、右下气管旁、主动脉旁及左肺门见数个淋巴结,较大短径约8MM,边界尚清,部分内可见钙化灶,较前未见明显变化。双侧胸腔未见积液。右侧胸膜无增厚、粘连。甲状腺双叶及峡部增大,密度不均匀,右叶见一结节,直径约为5MM,边界尚清,增强扫描见轻度强化。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度均匀,增强扫描未见异常强化表现。肝内胆管、胆总管未见扩张,胆囊大小正常,未见结石。肝门区结构未见异常。门静脉主干及分支未见充盈缺损。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。双肾未见明确异常。双肾上腺未见明确异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。腰2椎体右份见致密灶,边界尚清,密度不均匀,较前未见明显变化。左侧第6前肋骨质部分缺失。余骨质未见明显破坏。左上肺腺癌术后,对比2017-03-23、2017-02-27片:左上肺腺癌术后改变,未见明显肿瘤复发征象。左肺上叶及下叶少许纤维灶。双侧腋窝、纵隔及左肺门淋巴结并部分钙化,较前未见明显变化。腰2椎体病变,考虑转移瘤,较前未见明显变化。</t>
   </si>
   <si>
     <t>左上肺</t>
@@ -1586,7 +1586,7 @@
     <t>腰2椎体</t>
   </si>
   <si>
-    <t>左肺下叶背段支气管截断伴软组织肿块，考虑恶性，肺癌可能大。外周肺阻塞性改变。\U007F左肺门及纵隔5组多发肿大淋巴结，考虑转移。\U007F隆突下钙化灶，考虑陈旧病变。\U007F左侧肾上腺可疑结节，请参考腹部检查。左肺下叶背段支气管截断，局部见类圆形软组织密度肿块，边缘见浅分叶，强化不均，约56MM×42MM(IM39)，与肺门淋巴结融合，与左下肺门多支血管关系密切；远端肺内见斑片索条影。余肺清晰，未见结节及片絮状病灶。\U007F纵隔5组见融合状肿大淋巴结，约40MM×27MM(IM25)；隆突下见不规则钙化灶。锁骨上未见肿大淋巴结。\U007F双侧胸膜较光滑，未见胸水。\U007F扫描所及诸骨未见骨质破坏灶。\U007F扫及左侧肾上腺饱满，内侧支可疑结节(IM67)。</t>
+    <t>左肺下叶背段支气管截断伴软组织肿块,考虑恶性,肺癌可能大。外周肺阻塞性改变。\U007F左肺门及纵隔5组多发肿大淋巴结,考虑转移。\U007F隆突下钙化灶,考虑陈旧病变。\U007F左侧肾上腺可疑结节,请参考腹部检查。左肺下叶背段支气管截断,局部见类圆形软组织密度肿块,边缘见浅分叶,强化不均,约56MM×42MM(IM39),与肺门淋巴结融合,与左下肺门多支血管关系密切;远端肺内见斑片索条影。余肺清晰,未见结节及片絮状病灶。\U007F纵隔5组见融合状肿大淋巴结,约40MM×27MM(IM25);隆突下见不规则钙化灶。锁骨上未见肿大淋巴结。\U007F双侧胸膜较光滑,未见胸水。\U007F扫描所及诸骨未见骨质破坏灶。\U007F扫及左侧肾上腺饱满,内侧支可疑结节(IM67)。</t>
   </si>
   <si>
     <t>56MM×42MM</t>
@@ -1595,7 +1595,7 @@
     <t>左肺门,纵隔5组多发肿大淋巴结</t>
   </si>
   <si>
-    <t>1、①胸下段食管管壁增厚，管腔狭窄，代谢异常活跃，符合食管癌表现，且肿瘤活性尚存。②余部食管及胃壁未见确切异常高代谢灶，建议结合胃镜检查。2、食管旁、左肺门、贲门周围、胃左动脉旁及胰头上方多发淋巴结代谢活跃，多数倾向为转移。余纵隔及右肺门反应性淋巴结可能大；3、右肺中叶结节，代谢轻度活跃，结合病理，考虑符合类癌，建议定期随访。4、左上颌窦炎症；甲状腺右叶结节(建议超声随访)；右肺中叶及左肺上叶舌段索条；胆囊、结肠、膀胱增强扫描后改变；肝内钙化灶；子宫钙化灶。左髋臼骨岛。空腹6小时以上，静脉注射显像剂，平静休息60MMIN后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：大脑形态如常，皮层各叶放射性分布均匀。皮层下各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，两侧小脑对称。左上颌窦粘膜轻度增厚，未见高摄取。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺两叶不大，形态可，右叶见低密度结节，约0.7CM×0.3CM大小，未见高摄取，左叶腺实质内未见异常放射性增高灶。双颈部及锁骨上区未见明显异常淋巴结浓聚。两肺显影清晰，肺纹理正常，右肺中叶见类圆形结节，约0.9CM×0.7CM大小，边界光整，仅伴轻度摄取增高，最大SUV：2.8。右肺中叶及左肺上叶舌段索条影。心肌显影清晰。气管居中。胸膜无增厚，胸水征阴性。两侧大致对称，乳腺区未见异常浓聚灶。胸下段食管管壁增厚，管腔狭窄，较厚处约1.2CM，放射性分布异常浓聚，最大SUV：6.4，上下累及范围约3.1CM。余食管管壁及胃壁未见确切放射性分布异常浓聚灶。食管旁、左肺门、贲门周围、胃左动脉旁及胰头上方多发淋巴结浓聚，较大且较浓聚者位于胰头上方，约3.8CM×2.4CM大小，最大SUV：7.3。余纵隔及右肺门尚可见多个密度较高小淋巴结，均未见高摄取。盆腔内及双腹股沟未见浓聚淋巴结。腹水征阴性。肝脏形态可，轮廓光整，肝叶比例正常，肝实质内放射性分布稍欠均匀，肝内见钙化灶。肝内外胆管无扩张。胆囊大小正常，其内可见均匀性密度增高影，胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影，结直肠内见高密度对比剂影。膀胱内尿液密度增高，放射性浓聚如常。子宫体积、形态尚可，局部无异常放射性浓聚，宫壁见钙化灶。两侧附件区未见异常放射性摄取。视野内轴心骨未见异常放射性浓聚。上、下肢关节带大致正常。左髋臼骨岛。</t>
+    <t>1、①胸下段食管管壁增厚,管腔狭窄,代谢异常活跃,符合食管癌表现,且肿瘤活性尚存。②余部食管及胃壁未见确切异常高代谢灶,建议结合胃镜检查。2、食管旁、左肺门、贲门周围、胃左动脉旁及胰头上方多发淋巴结代谢活跃,多数倾向为转移。余纵隔及右肺门反应性淋巴结可能大;3、右肺中叶结节,代谢轻度活跃,结合病理,考虑符合类癌,建议定期随访。4、左上颌窦炎症;甲状腺右叶结节(建议超声随访);右肺中叶及左肺上叶舌段索条;胆囊、结肠、膀胱增强扫描后改变;肝内钙化灶;子宫钙化灶。左髋臼骨岛。空腹6小时以上,静脉注射显像剂,平静休息60MMIN后行全身PET及CT断层显像,PET图像经衰减校正及重建后,将PET及CT图像行多平面、多幅显示:大脑形态如常,皮层各叶放射性分布均匀。皮层下各神经核团显影清晰,放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深,白质未见明显低密度影,中线无移位。脑室无扩大,基底节区显示对称。小脑显影如常,两侧小脑对称。左上颌窦粘膜轻度增厚,未见高摄取。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。甲状腺两叶不大,形态可,右叶见低密度结节,约0.7CM×0.3CM大小,未见高摄取,左叶腺实质内未见异常放射性增高灶。双颈部及锁骨上区未见明显异常淋巴结浓聚。两肺显影清晰,肺纹理正常,右肺中叶见类圆形结节,约0.9CM×0.7CM大小,边界光整,仅伴轻度摄取增高,最大SUV:2.8。右肺中叶及左肺上叶舌段索条影。心肌显影清晰。气管居中。胸膜无增厚,胸水征阴性。两侧大致对称,乳腺区未见异常浓聚灶。胸下段食管管壁增厚,管腔狭窄,较厚处约1.2CM,放射性分布异常浓聚,最大SUV:6.4,上下累及范围约3.1CM。余食管管壁及胃壁未见确切放射性分布异常浓聚灶。食管旁、左肺门、贲门周围、胃左动脉旁及胰头上方多发淋巴结浓聚,较大且较浓聚者位于胰头上方,约3.8CM×2.4CM大小,最大SUV:7.3。余纵隔及右肺门尚可见多个密度较高小淋巴结,均未见高摄取。盆腔内及双腹股沟未见浓聚淋巴结。腹水征阴性。肝脏形态可,轮廓光整,肝叶比例正常,肝实质内放射性分布稍欠均匀,肝内见钙化灶。肝内外胆管无扩张。胆囊大小正常,其内可见均匀性密度增高影,胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影,结直肠内见高密度对比剂影。膀胱内尿液密度增高,放射性浓聚如常。子宫体积、形态尚可,局部无异常放射性浓聚,宫壁见钙化灶。两侧附件区未见异常放射性摄取。视野内轴心骨未见异常放射性浓聚。上、下肢关节带大致正常。左髋臼骨岛。</t>
   </si>
   <si>
     <t>胸下段食管,右肺中叶</t>
@@ -1604,13 +1604,13 @@
     <t>食管旁,左肺门,贲门周围,胃左动脉旁及胰头上方多发淋巴结</t>
   </si>
   <si>
-    <t>右侧乳腺导管增多，腺体结构尚正常，8点钟见3MM×2MM无回声区，CDFI未见明显彩色血流。左侧乳腺导管增多，腺体结构尚正常，11点钟见17MM×11MM低回声区，形态不规则，内见数个强回声，最大1MM，CDFI见线状彩色血流，周边为主，RI0.80。双侧腋窝见数个高回声区，右侧最大12MM×4MM，左侧最大11MM×7MM，CDFI见点状彩色血流，双侧腋窝见高回声区，右侧34MM×7MM，左侧26MM×5MM。双侧颌下、双侧颈血管旁见数枚低回声区，右侧最大16MM×5MM，左侧最大12MM×5MM，左侧锁骨上见6MM×3MM低回声团块，右侧锁骨上未见明显肿块回声。CDFI未见异常血流。肝肋下斜切126MM/(-)，剑下纵切60MM/2指，肝区回声较密尚均，门脉主干内径11MM，右支内径7MM，流速0.20MM/S，主干及左右支血流通畅，为向肝血流，流速曲线正常，脾门处脾静脉内径6MM，血流通畅。肝静脉血流通畅。脾肋间切35MM/(-)。左乳实质占位-考虑MT可能；双侧腋窝、双侧颈部及双侧锁骨上见淋巴结；右乳无回声区-考虑局部导管扩张；双侧腋窝副乳；双侧乳腺小叶增生，。</t>
+    <t>右侧乳腺导管增多,腺体结构尚正常,8点钟见3MM×2MM无回声区,CDFI未见明显彩色血流。左侧乳腺导管增多,腺体结构尚正常,11点钟见17MM×11MM低回声区,形态不规则,内见数个强回声,最大1MM,CDFI见线状彩色血流,周边为主,RI0.80。双侧腋窝见数个高回声区,右侧最大12MM×4MM,左侧最大11MM×7MM,CDFI见点状彩色血流,双侧腋窝见高回声区,右侧34MM×7MM,左侧26MM×5MM。双侧颌下、双侧颈血管旁见数枚低回声区,右侧最大16MM×5MM,左侧最大12MM×5MM,左侧锁骨上见6MM×3MM低回声团块,右侧锁骨上未见明显肿块回声。CDFI未见异常血流。肝肋下斜切126MM/(-),剑下纵切60MM/2指,肝区回声较密尚均,门脉主干内径11MM,右支内径7MM,流速0.20MM/S,主干及左右支血流通畅,为向肝血流,流速曲线正常,脾门处脾静脉内径6MM,血流通畅。肝静脉血流通畅。脾肋间切35MM/(-)。左乳实质占位-考虑MT可能;双侧腋窝、双侧颈部及双侧锁骨上见淋巴结;右乳无回声区-考虑局部导管扩张;双侧腋窝副乳;双侧乳腺小叶增生,。</t>
   </si>
   <si>
     <t>17MM×11MM</t>
   </si>
   <si>
-    <t>左肺下叶后基底段示一不规则肿块影，边缘分叶状，周围可见粗长毛刺，局部与纵隔胸膜关系密切，可见条索影同肺门相连，外周肺野可见纤维条索状密度增高影，呈明显不均匀强化，大小约2.3CM×1.9CM，左侧背侧胸膜可见轻度增厚；双肺野及左侧胸膜区可见多个结节灶，大者边缘毛糙，位于右肺下叶及肺门区，可见强化，直径约0.9CM。右肺门示淋巴结，直径约为0.9CM；纵隔、左肺门未见肿大淋巴结。左肺下叶肺癌并双肺、左侧胸膜转移，较前片2016-12-22示好转；左侧胸膜增厚，变化不著；骨转移，较前变化不著；右侧第6后肋骨质密度增高，变化不著</t>
+    <t>左肺下叶后基底段示一不规则肿块影,边缘分叶状,周围可见粗长毛刺,局部与纵隔胸膜关系密切,可见条索影同肺门相连,外周肺野可见纤维条索状密度增高影,呈明显不均匀强化,大小约2.3CM×1.9CM,左侧背侧胸膜可见轻度增厚;双肺野及左侧胸膜区可见多个结节灶,大者边缘毛糙,位于右肺下叶及肺门区,可见强化,直径约0.9CM。右肺门示淋巴结,直径约为0.9CM;纵隔、左肺门未见肿大淋巴结。左肺下叶肺癌并双肺、左侧胸膜转移,较前片2016-12-22示好转;左侧胸膜增厚,变化不著;骨转移,较前变化不著;右侧第6后肋骨质密度增高,变化不著</t>
   </si>
   <si>
     <t>2.3CM×1.9CM</t>
@@ -1619,13 +1619,13 @@
     <t>双肺,左侧胸膜,骨</t>
   </si>
   <si>
-    <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行PET/CT断层显像。脑部PET/CT图像示脑皮质及双侧基底节、丘脑、小脑未见明显糖代谢异常；脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET/CT图像示眼球、眼眶内未见明显糖代谢异常；眼球环壁完整，球内未见明显占位，视神经未见明显异常密度灶，眶内脂肪间隙清晰。鼻咽部PET/CT图像示鼻咽部、咽旁间隙均未见明显糖代谢异常增高灶；鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰；双侧上颌窦粘膜增厚，考虑为慢性炎症。颈部PET/CT图像示甲状腺无明显肿大，双侧叶密度欠均匀，未见明显糖代谢异常增高灶；双侧颈部、锁骨区未见明显糖代谢异常增高灶或肿大淋巴结；口咽及喉咽部无殊。胸部PET/CT图像示左肺MT术后，左肺体积缩小；左肺下叶见纤维条索灶；右肺上叶前段见多枚小结节，直径小于5.0MM，最大SUV值约为0.4；右肺下叶背段见斑片状稍高密度影，最大SUV值约为1.1；左侧内乳区(约平第2前肋水平)见糖代谢异常增高的淋巴结，大小约为9.7MM×6.8MM，平均CT值约为47.5HU，最大SUV值约为14.0；余纵隔及双侧肺门未见明显糖代谢异常增高灶及肿大淋巴结；双侧胸腔无积液；心脏无明显增大；双侧腋窝未见明显糖代谢异常增高灶及肿大淋巴结；左侧乳腺见钙化灶；右侧乳腺无殊。腹部PET/CT图像示肝脏右叶近膈顶处见糖代谢异常增高的低密度灶，大小约为25.3MM×18.1MM，平均CT值约为19.5HU，最大SUV值约为12.7；肝脏见小囊性灶，较大者位于右后叶下段，直径约为5.4MM，平均CT值约为23.0HU，最大SUV值约为2.2；肝内外胆管未见明显扩张；脾脏见点状钙化灶，未见明显糖代谢异常增高；胆囊、双肾、胰腺和双侧肾上腺未见明显糖代谢异常增高灶及占位；胃肠道内见显像剂生理性分布；腹膜后未见明显糖代谢异常增高灶及肿大淋巴结；腹腔无积液。盆部PET/CT图像示左侧髂血管旁见糖代谢异常增高的淋巴结，直径约为5.2MM，平均CT值约为54.0HU，最大SUV值约为6.1；肠道内见显像剂生理性分布；膀胱内见显像剂生理性积聚；子宫和双侧附件区未见明显糖代谢异常增高灶及占位；双侧腹股沟未见明显糖代谢异常增高灶及肿大淋巴结；盆腔无积液。骨骼PET/CT图像示胸骨下段和骶骨见溶骨性骨质破坏、周围软组织伴糖代谢异常增高，最大SUV值分别约为19.2和30.1；左侧第5肋后段局部骨质不连，考虑为术后改变。肺MT综合治疗后病例：左侧内乳和左侧髂血管旁淋巴结转移；肝脏右叶转移；胸骨和骶骨转移；右肺慢性炎性小结节可能，请随访；两肺慢性炎症；左侧乳腺钙化灶；肝脏囊肿；脾脏钙化灶。</t>
+    <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行PET/CT断层显像。脑部PET/CT图像示脑皮质及双侧基底节、丘脑、小脑未见明显糖代谢异常;脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET/CT图像示眼球、眼眶内未见明显糖代谢异常;眼球环壁完整,球内未见明显占位,视神经未见明显异常密度灶,眶内脂肪间隙清晰。鼻咽部PET/CT图像示鼻咽部、咽旁间隙均未见明显糖代谢异常增高灶;鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰;双侧上颌窦粘膜增厚,考虑为慢性炎症。颈部PET/CT图像示甲状腺无明显肿大,双侧叶密度欠均匀,未见明显糖代谢异常增高灶;双侧颈部、锁骨区未见明显糖代谢异常增高灶或肿大淋巴结;口咽及喉咽部无殊。胸部PET/CT图像示左肺MT术后,左肺体积缩小;左肺下叶见纤维条索灶;右肺上叶前段见多枚小结节,直径小于5.0MM,最大SUV值约为0.4;右肺下叶背段见斑片状稍高密度影,最大SUV值约为1.1;左侧内乳区(约平第2前肋水平)见糖代谢异常增高的淋巴结,大小约为9.7MM×6.8MM,平均CT值约为47.5HU,最大SUV值约为14.0;余纵隔及双侧肺门未见明显糖代谢异常增高灶及肿大淋巴结;双侧胸腔无积液;心脏无明显增大;双侧腋窝未见明显糖代谢异常增高灶及肿大淋巴结;左侧乳腺见钙化灶;右侧乳腺无殊。腹部PET/CT图像示肝脏右叶近膈顶处见糖代谢异常增高的低密度灶,大小约为25.3MM×18.1MM,平均CT值约为19.5HU,最大SUV值约为12.7;肝脏见小囊性灶,较大者位于右后叶下段,直径约为5.4MM,平均CT值约为23.0HU,最大SUV值约为2.2;肝内外胆管未见明显扩张;脾脏见点状钙化灶,未见明显糖代谢异常增高;胆囊、双肾、胰腺和双侧肾上腺未见明显糖代谢异常增高灶及占位;胃肠道内见显像剂生理性分布;腹膜后未见明显糖代谢异常增高灶及肿大淋巴结;腹腔无积液。盆部PET/CT图像示左侧髂血管旁见糖代谢异常增高的淋巴结,直径约为5.2MM,平均CT值约为54.0HU,最大SUV值约为6.1;肠道内见显像剂生理性分布;膀胱内见显像剂生理性积聚;子宫和双侧附件区未见明显糖代谢异常增高灶及占位;双侧腹股沟未见明显糖代谢异常增高灶及肿大淋巴结;盆腔无积液。骨骼PET/CT图像示胸骨下段和骶骨见溶骨性骨质破坏、周围软组织伴糖代谢异常增高,最大SUV值分别约为19.2和30.1;左侧第5肋后段局部骨质不连,考虑为术后改变。肺MT综合治疗后病例:左侧内乳和左侧髂血管旁淋巴结转移;肝脏右叶转移;胸骨和骶骨转移;右肺慢性炎性小结节可能,请随访;两肺慢性炎症;左侧乳腺钙化灶;肝脏囊肿;脾脏钙化灶。</t>
   </si>
   <si>
     <t>左侧内乳,左侧髂血管旁淋巴结,肝脏右叶,胸骨,骶骨</t>
   </si>
   <si>
-    <t>右乳外侧结构紊乱，见一截面约2.8CM×3.1CM不均匀软组织肿块，形态不规则，边缘不清，较显著强化；同侧皮肤较广泛性增厚。右下颈部、右侧锁骨上、右侧腋窝、胸肌间、右侧内乳区见大者短径约1.1CM肿大或稍大淋巴结。左侧锁骨上见短径不足0.5CM小淋巴结。右肺见少许斑片影。1.结合临床，右乳癌并同侧皮肤增厚，右侧腋窝、右胸肌间、右侧锁骨上淋巴结转移；右侧内乳区、右下颈部淋巴结稍大，转移不除外；左侧锁骨上小淋巴结2.右肺少许纤维灶或慢性炎症</t>
+    <t>右乳外侧结构紊乱,见一截面约2.8CM×3.1CM不均匀软组织肿块,形态不规则,边缘不清,较显著强化;同侧皮肤较广泛性增厚。右下颈部、右侧锁骨上、右侧腋窝、胸肌间、右侧内乳区见大者短径约1.1CM肿大或稍大淋巴结。左侧锁骨上见短径不足0.5CM小淋巴结。右肺见少许斑片影。1.结合临床,右乳癌并同侧皮肤增厚,右侧腋窝、右胸肌间、右侧锁骨上淋巴结转移;右侧内乳区、右下颈部淋巴结稍大,转移不除外;左侧锁骨上小淋巴结2.右肺少许纤维灶或慢性炎症</t>
   </si>
   <si>
     <t>2.8CM×3.1CM</t>
@@ -1634,7 +1634,7 @@
     <t>右侧腋窝,右胸肌间,右侧锁骨上淋巴结,右侧内乳区,右下颈部淋巴结</t>
   </si>
   <si>
-    <t>1.右乳占位，符合恶性，右侧腋窝淋巴结增大，下位胸椎骨转移；2.左肺下叶粟粒结节，左肺下叶条索灶。左肺下叶(14)见粟粒结节影。左肺下叶见条索影。两肺纹理清晰。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。右乳见肿块影，径约4.8CM。右侧腋窝淋巴结增大，径约1.5CM；上位胸椎体见骨质破坏征象。</t>
+    <t>1.右乳占位,符合恶性,右侧腋窝淋巴结增大,下位胸椎骨转移;2.左肺下叶粟粒结节,左肺下叶条索灶。左肺下叶(14)见粟粒结节影。左肺下叶见条索影。两肺纹理清晰。两肺门区未见异常。所示气管支气管影正常。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心脏大血管未见异常。右乳见肿块影,径约4.8CM。右侧腋窝淋巴结增大,径约1.5CM;上位胸椎体见骨质破坏征象。</t>
   </si>
   <si>
     <t>4.8CM</t>
@@ -1643,25 +1643,25 @@
     <t>下位胸椎</t>
   </si>
   <si>
-    <t>肝内见多发结节状低密度灶，大者约2.5CM，增强后可见轻度边缘强化，边界不清，胆道内见金属支架影，门脉右支未见充盈缺损；脾脏未见肿大，密度均匀；胰腺及双侧肾脏无殊；宫颈见小囊性低密度无强化灶；宫颈见小囊性低密度无强化灶；右侧卵巢见二枚囊状低密度灶，约2.5CM，局部后缘囊壁略厚，腹盆腔内无积液。部分腰椎内见结节状高密度影及类圆形透亮影，骶骨内见小结节高密度影。左乳MT术后病例，肝脏多发转移，较16-7-24片明显进展；右侧卵巢囊状灶，较前片增大；部分腰骶椎骨转移；宫颈小囊肿，请结合超声检查。</t>
+    <t>肝内见多发结节状低密度灶,大者约2.5CM,增强后可见轻度边缘强化,边界不清,胆道内见金属支架影,门脉右支未见充盈缺损;脾脏未见肿大,密度均匀;胰腺及双侧肾脏无殊;宫颈见小囊性低密度无强化灶;宫颈见小囊性低密度无强化灶;右侧卵巢见二枚囊状低密度灶,约2.5CM,局部后缘囊壁略厚,腹盆腔内无积液。部分腰椎内见结节状高密度影及类圆形透亮影,骶骨内见小结节高密度影。左乳MT术后病例,肝脏多发转移,较16-7-24片明显进展;右侧卵巢囊状灶,较前片增大;部分腰骶椎骨转移;宫颈小囊肿,请结合超声检查。</t>
   </si>
   <si>
     <t>肝脏,腰骶椎骨</t>
   </si>
   <si>
-    <t>肺动脉主干及其主要分支走行正常，管腔未见明显充盈缺损。右侧肺门处见不规则软组织灶，大小约4.6CM×4.1CM，包绕右下肺动脉及邻近支气管，远端肺组织见斑片状模糊影，两肺另见多发散在小斑片、类结节影，两肺上叶见小囊性透气灶，右下肺各支气管腔狭窄，肺门及纵隔见肿大淋巴结，胸膜无增厚，双侧胸腔内见积液。T6椎体密度不均，内见类结节状低密度灶，周围见硬化边。心包少量积液。右心膈角淋巴结肿大。肝内见多发结节状低密度灶。肺动脉主干未见明显栓塞征象；右肺门MT、包绕右下肺动脉，伴右下肺阻塞性炎症，两肺散在斑片结节灶，纵膈、肺门及右心膈角淋巴结肿大，两侧少量胸腔积液；两肺轻度气肿；T6椎体异常密度，建议核素骨扫描。肝脏多发转移。</t>
+    <t>肺动脉主干及其主要分支走行正常,管腔未见明显充盈缺损。右侧肺门处见不规则软组织灶,大小约4.6CM×4.1CM,包绕右下肺动脉及邻近支气管,远端肺组织见斑片状模糊影,两肺另见多发散在小斑片、类结节影,两肺上叶见小囊性透气灶,右下肺各支气管腔狭窄,肺门及纵隔见肿大淋巴结,胸膜无增厚,双侧胸腔内见积液。T6椎体密度不均,内见类结节状低密度灶,周围见硬化边。心包少量积液。右心膈角淋巴结肿大。肝内见多发结节状低密度灶。肺动脉主干未见明显栓塞征象;右肺门MT、包绕右下肺动脉,伴右下肺阻塞性炎症,两肺散在斑片结节灶,纵膈、肺门及右心膈角淋巴结肿大,两侧少量胸腔积液;两肺轻度气肿;T6椎体异常密度,建议核素骨扫描。肝脏多发转移。</t>
   </si>
   <si>
     <t>4.6CM×4.1CM</t>
   </si>
   <si>
-    <t>左乳癌术后改变。左肺尖斑片及条索灶，考虑放射性纤维化可能性大。双肺弥漫分布结节灶，考虑转移瘤可能性大，右肺上叶最大病灶可见分叶及毛刺，原发癌待排。右侧锁骨上、双肺门、纵隔、右侧前膈角、肝门区、胃左、腹腔干、腹主动脉旁多个淋巴结，考虑转移可能性大。肝内多发结节状病灶，考虑转移瘤可能性大。肝脾包膜、盆底腹膜、肠系膜、大网膜明显增厚，考虑转移可能性大。双侧胸腔积液，腹盆腔积液。右侧肱骨、多个椎体骨质破坏，考虑转移。左乳癌术后，左侧乳腺缺失，左侧胸壁未见明显肿物影，右侧乳腺未见明显异常密度灶，双侧腋窝未见明显肿大淋巴结。双肺纹理增粗，左肺尖见片状及条索灶，部分呈网格样改变。双肺见弥漫分布结节灶，大小约2MM×2MM~16MM×19MM，最大者位于右肺下叶背段，边缘毛糙，见短毛刺，临近胸膜可见牵拉，增强后明显强化。右侧锁骨上、下气管旁、双肺门、隆突下见多个淋巴结，短径约4~7MM，较明显强化。双侧胸腔见少量积液。双侧胸膜无增厚、粘连。肝内见多个结节状及团块状病灶，部分相互融合，最大者位于肝S3/4，呈多结节相互融合状，大小约37MM×39MM，边缘可见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾所见正常。双肾上腺所见正常。肝脾包膜、盆底腹膜、肠系膜、大网膜明显增厚，部分呈类结节状，大网膜增厚呈饼状，增强后不均匀强化。右侧前膈角、肝门区、胃左、腹腔干、腹主动脉旁见肿大淋巴结，最大者约18MM×21MM，增强后较明显强化。腹盆腔见大量积液。膀胱充盈良好，境界清楚。子宫大小、形态未见明显异常，子宫颈大小、形态未见异常。双侧髂血管旁、腹股沟未见肿大淋巴结。甲状腺双叶及峡部形态正常，密度均匀，未见占位性病变。喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。双侧颌下腺、腮腺大小形态正常，密度均匀。双颈IB、II区见数个淋巴结，短径约4~7MM，较明显强化。右侧肱骨、多个椎体见溶骨性骨质破坏，部分病灶周围见软组织肿块形成。</t>
+    <t>左乳癌术后改变。左肺尖斑片及条索灶,考虑放射性纤维化可能性大。双肺弥漫分布结节灶,考虑转移瘤可能性大,右肺上叶最大病灶可见分叶及毛刺,原发癌待排。右侧锁骨上、双肺门、纵隔、右侧前膈角、肝门区、胃左、腹腔干、腹主动脉旁多个淋巴结,考虑转移可能性大。肝内多发结节状病灶,考虑转移瘤可能性大。肝脾包膜、盆底腹膜、肠系膜、大网膜明显增厚,考虑转移可能性大。双侧胸腔积液,腹盆腔积液。右侧肱骨、多个椎体骨质破坏,考虑转移。左乳癌术后,左侧乳腺缺失,左侧胸壁未见明显肿物影,右侧乳腺未见明显异常密度灶,双侧腋窝未见明显肿大淋巴结。双肺纹理增粗,左肺尖见片状及条索灶,部分呈网格样改变。双肺见弥漫分布结节灶,大小约2MM×2MM~16MM×19MM,最大者位于右肺下叶背段,边缘毛糙,见短毛刺,临近胸膜可见牵拉,增强后明显强化。右侧锁骨上、下气管旁、双肺门、隆突下见多个淋巴结,短径约4~7MM,较明显强化。双侧胸腔见少量积液。双侧胸膜无增厚、粘连。肝内见多个结节状及团块状病灶,部分相互融合,最大者位于肝S3/4,呈多结节相互融合状,大小约37MM×39MM,边缘可见强化。肝内胆管正常,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。门静脉所见正常。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。双肾所见正常。双肾上腺所见正常。肝脾包膜、盆底腹膜、肠系膜、大网膜明显增厚,部分呈类结节状,大网膜增厚呈饼状,增强后不均匀强化。右侧前膈角、肝门区、胃左、腹腔干、腹主动脉旁见肿大淋巴结,最大者约18MM×21MM,增强后较明显强化。腹盆腔见大量积液。膀胱充盈良好,境界清楚。子宫大小、形态未见明显异常,子宫颈大小、形态未见异常。双侧髂血管旁、腹股沟未见肿大淋巴结。甲状腺双叶及峡部形态正常,密度均匀,未见占位性病变。喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。双侧颌下腺、腮腺大小形态正常,密度均匀。双颈IB、II区见数个淋巴结,短径约4~7MM,较明显强化。右侧肱骨、多个椎体见溶骨性骨质破坏,部分病灶周围见软组织肿块形成。</t>
   </si>
   <si>
     <t>双肺,右侧锁骨上,双肺门,纵隔,右侧前膈角,肝门区,胃左,腹腔干,腹主动脉旁多个淋巴结,肝,肝脾包膜,盆底腹膜,肠系膜,大网膜,右侧肱骨,椎体</t>
   </si>
   <si>
-    <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行PET/CT断层显像。脑部PET/CT图像示脑皮质及双侧基底节、丘脑、小脑未见明显糖代谢异常；脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET/CT图像示眼球、眼眶内未见明显糖代谢异常；眼球环壁完整，球内未见明显占位，视神经未见明显异常密度灶，眶内脂肪间隙清晰。鼻咽部PET/CT图像示鼻咽部、咽旁间隙均未见明显糖代谢异常增高灶；鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰；双侧额窦、筛窦、蝶窦和双侧上颌窦未见明显糖代谢异常增高灶及占位。颈部PET/CT图像示甲状腺双侧叶饱满，密度欠均匀，双侧叶内见稍低密度灶，右叶见小钙化灶；双侧颈部、锁骨区未见明显糖代谢异常增高灶或肿大淋巴结；口咽及喉咽部未见明显糖代谢异常增高灶及占位。胸部PET/CT图像示两肺纹理增粗，左肺下叶后基底段见糖代谢增高的结节，边缘见小毛刺野，邻近胸膜牵拉，大小约为17.3MM×16.9MM，最大SUV值约为7.1；各级支气管腔通畅；后纵隔(左侧支气管后方、食管前方)见大小约为6.8MM×8.5MM淋巴结，最大SUV值约为5.0；纵隔余处及双侧肺门未见明显糖代谢异常增高灶及肿大淋巴结；双侧胸腔无积液；心脏增大，右前胸壁见起搏器；双侧腋窝未见明显糖代谢异常增高灶及肿大淋巴结；双侧乳腺未见明显糖代谢异常增高灶及占位。腹部PET/CT图像示胃壁生理性显像剂分布；肠道内见显像剂生理性分布；肝脏表面光整，各叶比例匀称，实质内未见明显糖代谢异常增高灶及占位；肝内外胆管未见明显扩张；脾脏不大，密度均匀，未见明显糖代谢异常增高灶及占位；右肾见囊性灶，较大者大小约为22.8MM×19.6MM，最大SUV值约为1.3，平均CT值约为11.8HU；左肾见小结石，左肾盂稍扩张；胆囊、胰腺、双侧肾上腺未见明显糖代谢异常增高灶及占位；腹膜后未见明显糖代谢异常增高灶及肿大淋巴结；腹腔无积液。盆部PET/CT图像示肠道内见显像剂生理性分布；膀胱内见显像剂生理性积聚；子宫和双侧附件区未见明显糖代谢异常增高灶及占位；双侧腹股沟未见明显糖代谢异常增高灶及肿大淋巴结；盆腔无积液。骨骼PET/CT图像未见糖代谢异常增高灶，诸骨结构完整，未见明显骨质破坏吸收征象。考虑为左肺下叶MT可能；后纵隔(左侧支气管后方)淋巴结转移不除外，请结合临床；右肾囊肿；左肾结石；甲状腺双侧叶密度不均匀，请随访超声检查。</t>
+    <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行PET/CT断层显像。脑部PET/CT图像示脑皮质及双侧基底节、丘脑、小脑未见明显糖代谢异常;脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET/CT图像示眼球、眼眶内未见明显糖代谢异常;眼球环壁完整,球内未见明显占位,视神经未见明显异常密度灶,眶内脂肪间隙清晰。鼻咽部PET/CT图像示鼻咽部、咽旁间隙均未见明显糖代谢异常增高灶;鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰;双侧额窦、筛窦、蝶窦和双侧上颌窦未见明显糖代谢异常增高灶及占位。颈部PET/CT图像示甲状腺双侧叶饱满,密度欠均匀,双侧叶内见稍低密度灶,右叶见小钙化灶;双侧颈部、锁骨区未见明显糖代谢异常增高灶或肿大淋巴结;口咽及喉咽部未见明显糖代谢异常增高灶及占位。胸部PET/CT图像示两肺纹理增粗,左肺下叶后基底段见糖代谢增高的结节,边缘见小毛刺野,邻近胸膜牵拉,大小约为17.3MM×16.9MM,最大SUV值约为7.1;各级支气管腔通畅;后纵隔(左侧支气管后方、食管前方)见大小约为6.8MM×8.5MM淋巴结,最大SUV值约为5.0;纵隔余处及双侧肺门未见明显糖代谢异常增高灶及肿大淋巴结;双侧胸腔无积液;心脏增大,右前胸壁见起搏器;双侧腋窝未见明显糖代谢异常增高灶及肿大淋巴结;双侧乳腺未见明显糖代谢异常增高灶及占位。腹部PET/CT图像示胃壁生理性显像剂分布;肠道内见显像剂生理性分布;肝脏表面光整,各叶比例匀称,实质内未见明显糖代谢异常增高灶及占位;肝内外胆管未见明显扩张;脾脏不大,密度均匀,未见明显糖代谢异常增高灶及占位;右肾见囊性灶,较大者大小约为22.8MM×19.6MM,最大SUV值约为1.3,平均CT值约为11.8HU;左肾见小结石,左肾盂稍扩张;胆囊、胰腺、双侧肾上腺未见明显糖代谢异常增高灶及占位;腹膜后未见明显糖代谢异常增高灶及肿大淋巴结;腹腔无积液。盆部PET/CT图像示肠道内见显像剂生理性分布;膀胱内见显像剂生理性积聚;子宫和双侧附件区未见明显糖代谢异常增高灶及占位;双侧腹股沟未见明显糖代谢异常增高灶及肿大淋巴结;盆腔无积液。骨骼PET/CT图像未见糖代谢异常增高灶,诸骨结构完整,未见明显骨质破坏吸收征象。考虑为左肺下叶MT可能;后纵隔(左侧支气管后方)淋巴结转移不除外,请结合临床;右肾囊肿;左肾结石;甲状腺双侧叶密度不均匀,请随访超声检查。</t>
   </si>
   <si>
     <t>17.3MM×16.9MM</t>
@@ -1670,7 +1670,7 @@
     <t>后纵隔(左侧支气管后方)淋巴结</t>
   </si>
   <si>
-    <t>1.结合临床，前纵隔小细胞癌治疗后，较前(2015-05-25)略缩小；左侧腋窝、纵隔、双侧锁骨上、双肺门、膈上前中组淋巴结转移治疗后，较前部分缩小，部分变化不著，少部分示增大；双肺、胸膜转移治疗后，较前基本变化不著；腹膜后、膈脚后淋巴结转移治疗后，部分较前缩小，部分变化不著，部分增大(其内低密度区增多)。2.左侧胸腔积液伴左肺膨胀不全，积液示减少。前纵隔可见类三角形软组织密度肿块影，约3.0CM×3.3CM，增强扫描呈明显不均匀强化，与邻近纵膈内软组织分界不清，左腋窝、纵隔内2R、3A区、4R、5、6、7、8、9L区及双锁骨上、左侧颈后三角区、双肺门、左侧心隔角、膈上中组、右下肺基底段示结节灶，大者短径约1.6CM。双肺及双侧胸膜、叶间胸膜示增厚，并散在多发结节灶，胸膜显示不均匀增厚、强化。左胸腔内可见弧形液性密度影，其上缘示膨胀不全的肺组织。肝脏形态不规则，实质密度均匀，胆囊、胰腺、脾及双肾、双肾上腺未见异常。近肝门区、下腔静脉及腹主动脉周围、双侧膈脚后示数个结节灶，大者短径约1.9CM。</t>
+    <t>1.结合临床,前纵隔小细胞癌治疗后,较前(2015-05-25)略缩小;左侧腋窝、纵隔、双侧锁骨上、双肺门、膈上前中组淋巴结转移治疗后,较前部分缩小,部分变化不著,少部分示增大;双肺、胸膜转移治疗后,较前基本变化不著;腹膜后、膈脚后淋巴结转移治疗后,部分较前缩小,部分变化不著,部分增大(其内低密度区增多)。2.左侧胸腔积液伴左肺膨胀不全,积液示减少。前纵隔可见类三角形软组织密度肿块影,约3.0CM×3.3CM,增强扫描呈明显不均匀强化,与邻近纵膈内软组织分界不清,左腋窝、纵隔内2R、3A区、4R、5、6、7、8、9L区及双锁骨上、左侧颈后三角区、双肺门、左侧心隔角、膈上中组、右下肺基底段示结节灶,大者短径约1.6CM。双肺及双侧胸膜、叶间胸膜示增厚,并散在多发结节灶,胸膜显示不均匀增厚、强化。左胸腔内可见弧形液性密度影,其上缘示膨胀不全的肺组织。肝脏形态不规则,实质密度均匀,胆囊、胰腺、脾及双肾、双肾上腺未见异常。近肝门区、下腔静脉及腹主动脉周围、双侧膈脚后示数个结节灶,大者短径约1.9CM。</t>
   </si>
   <si>
     <t>前纵隔</t>
@@ -1682,7 +1682,7 @@
     <t>左侧腋窝,纵隔,双侧锁骨上,双肺门,膈上前中组淋巴结,胸膜,腹膜后,膈脚后淋巴结</t>
   </si>
   <si>
-    <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。鼻窦区未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示右侧锁骨区见大小约为10.6MM×4.5MM淋巴结；双侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺饱满，密度不均匀。胸部PET/CT图像示右侧乳头深部和内侧象限见数枚糖代谢增高软组织结节，部分趋于融合，乳头后方为著，大小约为37.2MM×35.0MM，最大SUV值约为17.9，局部皮肤增厚，乳头内凹；右乳内下象限病灶紧贴毗邻胸壁；右乳外上象限另见一大小约为9.0MM×8.0MM、无明显糖代谢增高的软组织结节；右乳另见数枚钙化灶；右侧腋窝见数枚糖代谢增高的肿大淋巴结，较大且糖代谢较高者大小约为16.0MM×12.2MM，最大SUV值约为7.9；右侧内乳(第2/3前肋间隙)见直径约为7.5MM、糖代谢增高的淋巴结，最大SUV值约为3.8；左乳未见明显糖代谢异常增高，内侧象限(乳头水平)见致密小结节；左侧腋窝无殊；两肺野未见明显糖代谢异常增高；右肺上叶尖段和下叶内基底段见团片状模糊影，上叶尖段部分支气管略扩张，近肺门处支气管腔内软组织影略增多；左肺上叶尖后段见直径小于5.0MM磨玻璃结节；左肺上叶尖后段和右肺下叶前基底段各见一致密小结节；纵隔、双肺门未见明显糖代谢异常增高和肿大淋巴结；双侧胸腔无积液；心脏无明显增大。腹部PET图像示胃壁呈糖代谢生理性增强；肠道呈生理性糖代谢增强；肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内未见明显占位；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；胆囊、胰、双肾、肾上腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚；肠道呈生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁光滑无增厚；子宫和双附件区未见明显占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见糖代谢异常增高。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示骶管局部膨大，相邻骨质压迫吸收；其余骨骼未见明显骨质破坏。右侧乳腺多发MT伴右侧腋窝和内乳淋巴结转移；右侧锁骨区稍大淋巴结，请随访；左乳钙化灶；左肺上叶小磨玻璃结节，请随访；右肺慢性炎症可能；左肺上叶和右肺下叶慢性炎性结节趋于陈旧；甲状腺密度不均匀，请结合超声检查；骶管囊肿。</t>
+    <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼外肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。鼻窦区未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示右侧锁骨区见大小约为10.6MM×4.5MM淋巴结;双侧颈部无明显肿大淋巴结;口咽、喉咽部无占位;甲状腺饱满,密度不均匀。胸部PET/CT图像示右侧乳头深部和内侧象限见数枚糖代谢增高软组织结节,部分趋于融合,乳头后方为著,大小约为37.2MM×35.0MM,最大SUV值约为17.9,局部皮肤增厚,乳头内凹;右乳内下象限病灶紧贴毗邻胸壁;右乳外上象限另见一大小约为9.0MM×8.0MM、无明显糖代谢增高的软组织结节;右乳另见数枚钙化灶;右侧腋窝见数枚糖代谢增高的肿大淋巴结,较大且糖代谢较高者大小约为16.0MM×12.2MM,最大SUV值约为7.9;右侧内乳(第2/3前肋间隙)见直径约为7.5MM、糖代谢增高的淋巴结,最大SUV值约为3.8;左乳未见明显糖代谢异常增高,内侧象限(乳头水平)见致密小结节;左侧腋窝无殊;两肺野未见明显糖代谢异常增高;右肺上叶尖段和下叶内基底段见团片状模糊影,上叶尖段部分支气管略扩张,近肺门处支气管腔内软组织影略增多;左肺上叶尖后段见直径小于5.0MM磨玻璃结节;左肺上叶尖后段和右肺下叶前基底段各见一致密小结节;纵隔、双肺门未见明显糖代谢异常增高和肿大淋巴结;双侧胸腔无积液;心脏无明显增大。腹部PET图像示胃壁呈糖代谢生理性增强;肠道呈生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整,各叶比例匀称,实质内未见明显占位;肝内外胆管无扩张;脾脏不大,密度均,未见明显占位;胆囊、胰、双肾、肾上腺无殊;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚;肠道呈生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁光滑无增厚;子宫和双附件区未见明显占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET图像未见糖代谢异常增高。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗示骶管局部膨大,相邻骨质压迫吸收;其余骨骼未见明显骨质破坏。右侧乳腺多发MT伴右侧腋窝和内乳淋巴结转移;右侧锁骨区稍大淋巴结,请随访;左乳钙化灶;左肺上叶小磨玻璃结节,请随访;右肺慢性炎症可能;左肺上叶和右肺下叶慢性炎性结节趋于陈旧;甲状腺密度不均匀,请结合超声检查;骶管囊肿。</t>
   </si>
   <si>
     <t>37.2MM×35.0MM</t>
@@ -1691,25 +1691,25 @@
     <t>右侧腋窝,内乳淋巴结</t>
   </si>
   <si>
-    <t>左乳癌术后，左侧胸壁未见明确增厚结节，右乳未见明确肿物。左锁上区见肿大淋巴结，最大约16MM×14MM，密度不均匀，增强后不均匀明显强化。双侧腋窝未见明确肿大淋巴结。双肺纹理清晰，右中肺见少许索条，余肺内未见实质性病变。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝实质密度普遍不均匀减低，增强后强化密度尚均匀，未见异常强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉未见异常。脾、胰腺大小、形态正常，密度均匀。双肾、双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。子宫左前壁见一类圆形结节，大小约25MM×20MM，密度尚均匀，增强后轻中度强化，子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。颈部结构清晰，各血管充盈良好。甲状腺右侧叶见类圆形稍低密度结节，直径约5MM，增强后轻度强化。喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。双侧颌下腺、腮腺大小形态正常，密度均匀。颈部肌群排列对称，密度均匀，肌间隙未见明显异常。余颈部未见肿大淋巴结。腰1椎体见类圆形致密灶，边界模糊，骶1左份见小结节状致密灶，边界尚清。左乳癌术后改变，左前胸壁局部未见明确肿物。左锁上区肿大淋巴结，考虑转移。右中肺少许索条。脂肪肝。子宫左前壁结节，考虑子宫肌瘤。甲状腺右侧叶稍低密度小结节，考虑结节性甲状腺肿可能大。腰1椎体骨质改变，考虑转移瘤；骶1椎体左份稍高密度小结节，建议观察。</t>
+    <t>左乳癌术后,左侧胸壁未见明确增厚结节,右乳未见明确肿物。左锁上区见肿大淋巴结,最大约16MM×14MM,密度不均匀,增强后不均匀明显强化。双侧腋窝未见明确肿大淋巴结。双肺纹理清晰,右中肺见少许索条,余肺内未见实质性病变。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,肝实质密度普遍不均匀减低,增强后强化密度尚均匀,未见异常强化。肝内胆管正常,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。肝门区正常。门静脉未见异常。脾、胰腺大小、形态正常,密度均匀。双肾、双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。膀胱充盈良好,境界清楚。子宫左前壁见一类圆形结节,大小约25MM×20MM,密度尚均匀,增强后轻中度强化,子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。颈部结构清晰,各血管充盈良好。甲状腺右侧叶见类圆形稍低密度结节,直径约5MM,增强后轻度强化。喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。双侧颌下腺、腮腺大小形态正常,密度均匀。颈部肌群排列对称,密度均匀,肌间隙未见明显异常。余颈部未见肿大淋巴结。腰1椎体见类圆形致密灶,边界模糊,骶1左份见小结节状致密灶,边界尚清。左乳癌术后改变,左前胸壁局部未见明确肿物。左锁上区肿大淋巴结,考虑转移。右中肺少许索条。脂肪肝。子宫左前壁结节,考虑子宫肌瘤。甲状腺右侧叶稍低密度小结节,考虑结节性甲状腺肿可能大。腰1椎体骨质改变,考虑转移瘤;骶1椎体左份稍高密度小结节,建议观察。</t>
   </si>
   <si>
     <t>左锁上区肿大淋巴结,腰1椎体</t>
   </si>
   <si>
-    <t>右乳外上象限示最大截面约2.8CM×2.2CM不规则略高密度影，边缘毛糙，增强扫描呈不均质明显强化，内示斑点状致密影。另右乳内示颗粒状致密影。左乳未见明显异常。右侧腋窝示多发结节灶，强化较著，大者短径约1.5CM，边缘毛糙。双侧锁骨上示大者短径约0.7CM淋巴结。双侧内乳区、肺门及纵隔内未见肿大淋巴结。双肺野清晰。背部皮下脂肪层内示小团片状致密影。甲状腺左叶示低密度灶，增强呈不均质较显著强化，边界欠清。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。1.右乳癌并右腋窝淋巴结转移。2.右乳钙化灶。3.甲状腺低密度灶，请结合其他检查。4.双侧锁骨上稍大淋巴结。5.背部钙化灶。6.颅脑CT扫描未见明显异常。</t>
+    <t>右乳外上象限示最大截面约2.8CM×2.2CM不规则略高密度影,边缘毛糙,增强扫描呈不均质明显强化,内示斑点状致密影。另右乳内示颗粒状致密影。左乳未见明显异常。右侧腋窝示多发结节灶,强化较著,大者短径约1.5CM,边缘毛糙。双侧锁骨上示大者短径约0.7CM淋巴结。双侧内乳区、肺门及纵隔内未见肿大淋巴结。双肺野清晰。背部皮下脂肪层内示小团片状致密影。甲状腺左叶示低密度灶,增强呈不均质较显著强化,边界欠清。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。1.右乳癌并右腋窝淋巴结转移。2.右乳钙化灶。3.甲状腺低密度灶,请结合其他检查。4.双侧锁骨上稍大淋巴结。5.背部钙化灶。6.颅脑CT扫描未见明显异常。</t>
   </si>
   <si>
     <t>右腋窝淋巴结</t>
   </si>
   <si>
-    <t>右肺上叶术后，术区软组织密度影，复发可能。双肺多发结节，考虑转移。纵隔左肺门多发淋巴结，转移待排。肝内多发低密度灶，请结合腹部检查评价。右肺上叶术后，体积缩小，术区可见软组织密度影，约17MM×17MM(IM15)；右肺及左肺上叶可见多发结节影，右肺分布为著，较大约11MM×9MM(IM20)，部分与胸膜关系密切。纵隔4L、10L组及左肺门见多发淋巴结，较大约17MM×9MM(IM30)；右肺门、双侧锁骨上区及双腋下未见肿大淋巴结。双侧胸膜欠光滑，未见胸水征象。扫及胸廓诸骨未见明确破坏征象。扫及肝内多发低密度灶。</t>
+    <t>右肺上叶术后,术区软组织密度影,复发可能。双肺多发结节,考虑转移。纵隔左肺门多发淋巴结,转移待排。肝内多发低密度灶,请结合腹部检查评价。右肺上叶术后,体积缩小,术区可见软组织密度影,约17MM×17MM(IM15);右肺及左肺上叶可见多发结节影,右肺分布为著,较大约11MM×9MM(IM20),部分与胸膜关系密切。纵隔4L、10L组及左肺门见多发淋巴结,较大约17MM×9MM(IM30);右肺门、双侧锁骨上区及双腋下未见肿大淋巴结。双侧胸膜欠光滑,未见胸水征象。扫及胸廓诸骨未见明确破坏征象。扫及肝内多发低密度灶。</t>
   </si>
   <si>
     <t>双肺,纵隔左肺门多发淋巴结</t>
   </si>
   <si>
-    <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行PET/CT断层显像。脑部PET/CT图像示脑实质内未见明显糖代谢异常增高灶或明显占位；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET/CT图像示眼球、眼眶内未见明显糖代谢异常；眼球环壁完整，球内未见异常密度灶，视神经未见明显异常密度灶，眶内脂肪间隙清晰。鼻咽部PET/CT图像示鼻咽部、咽旁间隙均未见明显糖代谢异常增高及占位；咽旁间隙清晰；右侧上颌窦及筛窦粘膜增厚，考虑为慢性炎症。颈部PET/CT图像示左侧锁骨区见糖代谢增高的淋巴结，大小约为6.4MM×5.9MM，平均CT值约为38.3HU，最大SUV值约为5.6；双侧颌下见糖代谢增高的淋巴结，较大者位于左侧，大小约为14.0MM×7.3MM，平均CT值约为66.8HU，最大SUV值约为3.6，考虑为炎症；甲状腺无明显肿大，未见明显糖代谢异常增高灶及占位；口咽及喉咽部未见明显糖代谢异常增高灶及占位。胸部PET/CT图像示左肺下叶外后基底段见糖代谢增高的结节，大小约为18.3MM×18.1MM，平均CT值约为20.3HU，最大SUV值约为11.9，边缘见分叶，牵拉邻近胸膜；左肺门不大，伴糖代谢增高，最大SUV值约为4.5，考虑为非特异性炎症；右肺上叶后段及左肺上叶舌段见小结节，直径小于5.0MM，其中右肺上叶结节伴糖代谢增高，最大SUV值约为1.1；各级支气管腔通畅；前纵隔见低密度结节，大小约为10.6MM×10.3MM，平均CT值约为43.4HU，最大SUV值约为0.7；双侧胸腔无积液；心脏无明显增大；双侧腋窝未见明显糖代谢异常增高灶及肿大淋巴结；右乳外侧象限钙化灶，左侧乳腺未见明显糖代谢异常增高灶及占位。腹部PET/CT图像示右侧结肠旁沟系膜增厚伴糖代谢异常增高，最大SUV值约为4.1；肝脏右叶钙化灶；肝脏右叶近下腔静脉处局部糖代谢增高，直径约为7.1MM，早期及延迟1.5小时后最大SUV值均约为4.3；胃壁生理性显像剂分布；肠道内见显像剂生理性分布；脾脏不大，密度均匀，未见明显糖代谢异常增高灶及占位；胆囊和胆总管结石；双肾、胰腺、双侧肾上腺未见明显糖代谢异常增高灶及占位；腹腔无积液。盆部PET/CT图像示肠道内见显像剂生理性分布；膀胱增大，内见显像剂生理性积聚；子宫钙化灶；双侧附件区未见明显糖代谢异常增高灶及占位；双侧腹股沟未见明显糖代谢异常增高灶及肿大淋巴结；盆腔无积液；左侧臀部肌间隙内见多枚糖代谢增高的不规则结节，较大者大小约为18.4MM×13.4MM，平均CT值约为32.7HU，最大SUV值约为2.3。骨骼及肌肉PET/CT图像示第4、12胸椎、第2腰椎、骶骨及左侧股骨上段见溶骨性骨质破坏伴糖代谢异常增高，糖代谢较高三处分别位于第4胸椎、第12胸椎及左侧股骨，最大SUV值约为14.1、12.9和9.1，其中第4、12胸椎骨皮质连续性中断。肺MT靶向治疗后：左肺下叶癌灶肿瘤代谢活跃伴左侧锁骨区淋巴结转移，全身多处骨转移伴第4、12胸椎病理性骨折；右肺上叶转移和右侧结肠旁沟转移可能；左肺上叶转移不除外；脑实质内未见明显糖代谢异常增高灶，请结合临床；前纵隔良性病变；右乳钙化灶；肝脏右叶生理性摄取可能，请结合增强MRI检查；肝脏钙化灶；胆囊和胆总管结石；子宫肌瘤伴钙化；左侧臀部肌间隙良性病变可能。</t>
+    <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行PET/CT断层显像。脑部PET/CT图像示脑实质内未见明显糖代谢异常增高灶或明显占位;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET/CT图像示眼球、眼眶内未见明显糖代谢异常;眼球环壁完整,球内未见异常密度灶,视神经未见明显异常密度灶,眶内脂肪间隙清晰。鼻咽部PET/CT图像示鼻咽部、咽旁间隙均未见明显糖代谢异常增高及占位;咽旁间隙清晰;右侧上颌窦及筛窦粘膜增厚,考虑为慢性炎症。颈部PET/CT图像示左侧锁骨区见糖代谢增高的淋巴结,大小约为6.4MM×5.9MM,平均CT值约为38.3HU,最大SUV值约为5.6;双侧颌下见糖代谢增高的淋巴结,较大者位于左侧,大小约为14.0MM×7.3MM,平均CT值约为66.8HU,最大SUV值约为3.6,考虑为炎症;甲状腺无明显肿大,未见明显糖代谢异常增高灶及占位;口咽及喉咽部未见明显糖代谢异常增高灶及占位。胸部PET/CT图像示左肺下叶外后基底段见糖代谢增高的结节,大小约为18.3MM×18.1MM,平均CT值约为20.3HU,最大SUV值约为11.9,边缘见分叶,牵拉邻近胸膜;左肺门不大,伴糖代谢增高,最大SUV值约为4.5,考虑为非特异性炎症;右肺上叶后段及左肺上叶舌段见小结节,直径小于5.0MM,其中右肺上叶结节伴糖代谢增高,最大SUV值约为1.1;各级支气管腔通畅;前纵隔见低密度结节,大小约为10.6MM×10.3MM,平均CT值约为43.4HU,最大SUV值约为0.7;双侧胸腔无积液;心脏无明显增大;双侧腋窝未见明显糖代谢异常增高灶及肿大淋巴结;右乳外侧象限钙化灶,左侧乳腺未见明显糖代谢异常增高灶及占位。腹部PET/CT图像示右侧结肠旁沟系膜增厚伴糖代谢异常增高,最大SUV值约为4.1;肝脏右叶钙化灶;肝脏右叶近下腔静脉处局部糖代谢增高,直径约为7.1MM,早期及延迟1.5小时后最大SUV值均约为4.3;胃壁生理性显像剂分布;肠道内见显像剂生理性分布;脾脏不大,密度均匀,未见明显糖代谢异常增高灶及占位;胆囊和胆总管结石;双肾、胰腺、双侧肾上腺未见明显糖代谢异常增高灶及占位;腹腔无积液。盆部PET/CT图像示肠道内见显像剂生理性分布;膀胱增大,内见显像剂生理性积聚;子宫钙化灶;双侧附件区未见明显糖代谢异常增高灶及占位;双侧腹股沟未见明显糖代谢异常增高灶及肿大淋巴结;盆腔无积液;左侧臀部肌间隙内见多枚糖代谢增高的不规则结节,较大者大小约为18.4MM×13.4MM,平均CT值约为32.7HU,最大SUV值约为2.3。骨骼及肌肉PET/CT图像示第4、12胸椎、第2腰椎、骶骨及左侧股骨上段见溶骨性骨质破坏伴糖代谢异常增高,糖代谢较高三处分别位于第4胸椎、第12胸椎及左侧股骨,最大SUV值约为14.1、12.9和9.1,其中第4、12胸椎骨皮质连续性中断。肺MT靶向治疗后:左肺下叶癌灶肿瘤代谢活跃伴左侧锁骨区淋巴结转移,全身多处骨转移伴第4、12胸椎病理性骨折;右肺上叶转移和右侧结肠旁沟转移可能;左肺上叶转移不除外;脑实质内未见明显糖代谢异常增高灶,请结合临床;前纵隔良性病变;右乳钙化灶;肝脏右叶生理性摄取可能,请结合增强MRI检查;肝脏钙化灶;胆囊和胆总管结石;子宫肌瘤伴钙化;左侧臀部肌间隙良性病变可能。</t>
   </si>
   <si>
     <t>18.3MM×18.1MM</t>
@@ -1718,7 +1718,7 @@
     <t>左侧锁骨区淋巴结,骨,右肺上叶,右侧结肠旁沟,左肺上叶</t>
   </si>
   <si>
-    <t>左肺上叶见不规则软组织影，边缘见毛刺，邻近胸膜凹陷，大小约2.3CM×1.7CM，右肺上叶见多发小结节，部分钙化，最大直径约5MM。左肺尖见斑点状模糊影，两肺另见散在少许条索影及结节状钙化灶，所见各支气管腔通畅，肺门及纵隔未见肿大淋巴结，主动脉弓及部分冠脉壁钙化。胸膜无增厚，胸腔内无积液。左侧第3后肋骨见类圆形高密度影，其内密度不均，大小约2.8CM×2.3CM，T3、T4胸椎椎体及附件内见类圆形低密度影。双侧肩胛骨局部不均密度增高。甲状腺左右叶见斑点状钙化，甲状腺峡部见低密度结节，直径约1.3CM。左肺上叶MT，右肺上叶小结节，与(17-12-06)相仿，随访；左侧第3后肋及T3、T4胸椎、肩胛骨病变，转移可能，建议骨扫描检查；两肺慢性炎症及陈旧灶。甲状腺钙化。甲状腺峡部结节。</t>
+    <t>左肺上叶见不规则软组织影,边缘见毛刺,邻近胸膜凹陷,大小约2.3CM×1.7CM,右肺上叶见多发小结节,部分钙化,最大直径约5MM。左肺尖见斑点状模糊影,两肺另见散在少许条索影及结节状钙化灶,所见各支气管腔通畅,肺门及纵隔未见肿大淋巴结,主动脉弓及部分冠脉壁钙化。胸膜无增厚,胸腔内无积液。左侧第3后肋骨见类圆形高密度影,其内密度不均,大小约2.8CM×2.3CM,T3、T4胸椎椎体及附件内见类圆形低密度影。双侧肩胛骨局部不均密度增高。甲状腺左右叶见斑点状钙化,甲状腺峡部见低密度结节,直径约1.3CM。左肺上叶MT,右肺上叶小结节,与(17-12-06)相仿,随访;左侧第3后肋及T3、T4胸椎、肩胛骨病变,转移可能,建议骨扫描检查;两肺慢性炎症及陈旧灶。甲状腺钙化。甲状腺峡部结节。</t>
   </si>
   <si>
     <t>2.3CM×1.7CM</t>
@@ -1727,7 +1727,7 @@
     <t>左侧第3后肋,T3,T4胸椎椎体,肩胛骨</t>
   </si>
   <si>
-    <t>左肺上叶肺门区可见片状不规则密度增高影，未见明显强化。纵隔、肺门未见明确肿大淋巴结。肝右后叶实质内示低密度肿块，形态不规则，大者截面约1.4CM×2.6CM，增强后其内示不均质斑点状强化。胆囊充盈可，壁不厚。胰、脾、双侧肾上腺、双肾、膀胱、直肠、前列腺未见异常。腹膜后未见显著增大淋巴结。多发腰椎椎体、左侧髂骨示成骨性骨质破坏；右侧第八肋骨局部可见成骨性骨质改变。双侧局部颈部结构对称，鼻咽、口咽、喉、气管、甲状腺及各副鼻窦未见异常。双侧颈部未见肿大淋巴结。1.结合临床，左肺癌、直肠癌治疗后，病变显示不清；肝转移2.多发腰椎转移，右侧第八肋骨局部成骨性改变，请结合临床3.颈部扫描未见异常</t>
+    <t>左肺上叶肺门区可见片状不规则密度增高影,未见明显强化。纵隔、肺门未见明确肿大淋巴结。肝右后叶实质内示低密度肿块,形态不规则,大者截面约1.4CM×2.6CM,增强后其内示不均质斑点状强化。胆囊充盈可,壁不厚。胰、脾、双侧肾上腺、双肾、膀胱、直肠、前列腺未见异常。腹膜后未见显著增大淋巴结。多发腰椎椎体、左侧髂骨示成骨性骨质破坏;右侧第八肋骨局部可见成骨性骨质改变。双侧局部颈部结构对称,鼻咽、口咽、喉、气管、甲状腺及各副鼻窦未见异常。双侧颈部未见肿大淋巴结。1.结合临床,左肺癌、直肠癌治疗后,病变显示不清;肝转移2.多发腰椎转移,右侧第八肋骨局部成骨性改变,请结合临床3.颈部扫描未见异常</t>
   </si>
   <si>
     <t>左肺,直肠</t>
@@ -1736,7 +1736,7 @@
     <t>肝,腰椎</t>
   </si>
   <si>
-    <t>1.右肺下叶癌并右侧胸膜转移、双肺多发转移，较前2014-11-07好转；纵隔、双锁上、右侧心膈角多发小或稍大淋巴结，较前部分缩小，部分变化不著3.胸椎T11骨转移，变化不著；第1腰椎附件局限性密度增高，请结合临床4.左侧胸膜略厚，变化不著右肺下叶后基底段可见一软组织肿块，边缘分叶毛刺，与邻近胸膜关系密切，最大截面约为1.7CM×1.5CM(纵隔窗)，增强后中度强化。双肺野内可见多发大小不一的结节影，大者长径约为0.7CM，纵隔内右上气管旁、腔静脉后、主肺动脉窗区、隆突下、双锁上、右侧心膈角区可见多发肿大或小淋巴结，大者短径约为0.6CM。右侧胸膜(含叶间胸膜)增厚，局部呈类结节或线状强化。左侧胸膜略厚。T11椎体可见溶骨性骨质破坏。第1腰椎椎弓根密度示增高。</t>
+    <t>1.右肺下叶癌并右侧胸膜转移、双肺多发转移,较前2014-11-07好转;纵隔、双锁上、右侧心膈角多发小或稍大淋巴结,较前部分缩小,部分变化不著3.胸椎T11骨转移,变化不著;第1腰椎附件局限性密度增高,请结合临床4.左侧胸膜略厚,变化不著右肺下叶后基底段可见一软组织肿块,边缘分叶毛刺,与邻近胸膜关系密切,最大截面约为1.7CM×1.5CM(纵隔窗),增强后中度强化。双肺野内可见多发大小不一的结节影,大者长径约为0.7CM,纵隔内右上气管旁、腔静脉后、主肺动脉窗区、隆突下、双锁上、右侧心膈角区可见多发肿大或小淋巴结,大者短径约为0.6CM。右侧胸膜(含叶间胸膜)增厚,局部呈类结节或线状强化。左侧胸膜略厚。T11椎体可见溶骨性骨质破坏。第1腰椎椎弓根密度示增高。</t>
   </si>
   <si>
     <t>1.7CM×1.5CM</t>
@@ -1745,19 +1745,19 @@
     <t>右侧胸膜,双肺,胸椎T11</t>
   </si>
   <si>
-    <t>右肺上叶小结节(IMG25)，右肺中叶及两肺下叶见少许纤维条索影，两侧叶间胸膜增厚，所见各支气管腔通畅，肺门及纵隔未见肿大淋巴结，心包及两侧胸腔内见少许水样密度。部分椎体及肋骨、胸骨、肩胛骨及双侧肱骨头内见虫蚀样骨质破坏，左侧第9后肋骨质破坏周围见软组织肿块，另见双侧多发肋骨骨皮质欠规整伴周围骨痂形成。附见左侧乳腺内见软组织肿块，内见斑点状钙化，邻近皮肤增厚粘连。左侧乳腺占位，MT可能，部分椎体及肋骨、胸骨、肩胛骨及双侧肱骨头转移，右肺上叶小结节，心包及双侧少量胸腔积液，双肺少许陈旧灶。双侧多发肋骨陈旧性骨折。</t>
+    <t>右肺上叶小结节(IMG25),右肺中叶及两肺下叶见少许纤维条索影,两侧叶间胸膜增厚,所见各支气管腔通畅,肺门及纵隔未见肿大淋巴结,心包及两侧胸腔内见少许水样密度。部分椎体及肋骨、胸骨、肩胛骨及双侧肱骨头内见虫蚀样骨质破坏,左侧第9后肋骨质破坏周围见软组织肿块,另见双侧多发肋骨骨皮质欠规整伴周围骨痂形成。附见左侧乳腺内见软组织肿块,内见斑点状钙化,邻近皮肤增厚粘连。左侧乳腺占位,MT可能,部分椎体及肋骨、胸骨、肩胛骨及双侧肱骨头转移,右肺上叶小结节,心包及双侧少量胸腔积液,双肺少许陈旧灶。双侧多发肋骨陈旧性骨折。</t>
   </si>
   <si>
     <t>椎体,肋骨,胸骨,肩胛骨,双侧肱骨</t>
   </si>
   <si>
-    <t>右乳炎性乳癌术后：右乳片状糖代谢异常增高，考虑术后改变可能，肿瘤残留不除外，请结合临床；左乳内上象限小钙化灶；右肺中叶磨玻璃结节伴轻度糖代谢增高，考虑为原发性MT可能，请结合临床密切随访；脂肪肝。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示右乳肿块切除术后，局部软组织明显肿胀，脂肪间隙内见索条影及气体影，腺体不规则增厚，伴片状糖代谢异常增高，最大SUV值约为3.7；左乳内上象限见点状钙化灶；双侧腋窝无明显糖代谢异常增高的肿大淋巴结。右肺上叶前段见密度不均的磨玻璃结节，大小约为17.0MM×20.8MM，内见扩张的支气管影，周边有血管穿行，局部有胸膜牵拉，局部伴轻度糖代谢增高，最大SUV值约为1.2；右上肺胸膜局部稍增厚；纵隔及双肺门无殊；双侧胸腔无积液；心脏无明显增大。腹部PET/CT图像示胃壁充盈欠佳，胃窦局部糖代谢轻度增高，最大SUV值约为4.6，未见明显占位征象，考虑为炎症或生理性摄取；肠道呈线型生理性糖代谢增强；肝脏表面光整，各叶比例匀称，实质内密度普遍减低，明显低于脾脏密度；肝内外胆管无扩张；胆囊术后缺如，胆囊窝内见金属密度影；脾门处见直径约为9.0MM结节，密度与脾脏密度近似，考虑为副脾；脾、胰、双肾、肾上腺无殊；腹膜后散在无明显糖代谢异常增高的肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁光滑无增厚；子宫和双附件区未见明显占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示诸骨未见明显骨质破坏；颈、胸、腰、骶椎体及椎小关节骨质增生，考虑为退变。</t>
+    <t>右乳炎性乳癌术后:右乳片状糖代谢异常增高,考虑术后改变可能,肿瘤残留不除外,请结合临床;左乳内上象限小钙化灶;右肺中叶磨玻璃结节伴轻度糖代谢增高,考虑为原发性MT可能,请结合临床密切随访;脂肪肝。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼内肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结;口咽、喉咽部无占位;甲状腺无肿大,未见明显占位。胸部PET/CT图像示右乳肿块切除术后,局部软组织明显肿胀,脂肪间隙内见索条影及气体影,腺体不规则增厚,伴片状糖代谢异常增高,最大SUV值约为3.7;左乳内上象限见点状钙化灶;双侧腋窝无明显糖代谢异常增高的肿大淋巴结。右肺上叶前段见密度不均的磨玻璃结节,大小约为17.0MM×20.8MM,内见扩张的支气管影,周边有血管穿行,局部有胸膜牵拉,局部伴轻度糖代谢增高,最大SUV值约为1.2;右上肺胸膜局部稍增厚;纵隔及双肺门无殊;双侧胸腔无积液;心脏无明显增大。腹部PET/CT图像示胃壁充盈欠佳,胃窦局部糖代谢轻度增高,最大SUV值约为4.6,未见明显占位征象,考虑为炎症或生理性摄取;肠道呈线型生理性糖代谢增强;肝脏表面光整,各叶比例匀称,实质内密度普遍减低,明显低于脾脏密度;肝内外胆管无扩张;胆囊术后缺如,胆囊窝内见金属密度影;脾门处见直径约为9.0MM结节,密度与脾脏密度近似,考虑为副脾;脾、胰、双肾、肾上腺无殊;腹膜后散在无明显糖代谢异常增高的肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁光滑无增厚;子宫和双附件区未见明显占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗示诸骨未见明显骨质破坏;颈、胸、腰、骶椎体及椎小关节骨质增生,考虑为退变。</t>
   </si>
   <si>
     <t>右乳,右肺中叶</t>
   </si>
   <si>
-    <t>肺癌术后、脑转移、淋巴结转移放化疗后复查，对比2014-09-26片：右上肺叶术后缺失，右肺中叶纵膈旁见一肿块，大小约23MM×45MM，边界欠清，增强扫描明显强化，病灶周围见少量条索灶，边界欠清。双肺可见散在小结节，边界尚清，直径约2MM~5MM，密度尚均匀。右肺下叶后基底段近胸膜处见一类结节，边界清，短径约3MM，大致同前。右上肺支气管中断，余气管及支气管分支通畅。右侧上气管旁、血管前、主肺动脉窗、隆突下及双肺门见肿大淋巴结，边界尚清，大者大小约15MM×11MM，增强扫描较明显强化。双侧胸腔未见积液。右侧胸膜稍增厚，左侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝内见多个低密度灶，最大者约23MM×19MM，边界欠清，增强扫描轻度强化，较前增大、增多。肝S8见一小低密度灶，直径约5MM，边界清，增强扫描动脉期见少许点状强化，门脉期、延迟期强化范围有扩大。胆囊大小正常，其内未见结石影。肝内胆管、胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度不均匀，见一结节低密度灶，边界欠清，大小约12MM×12MM，轻度强化，较前变化不大。胰腺大小、形态正常，密度均匀。双肾、双肾上腺所见正常。腹膜后未见肿大淋巴结。双颈结构清晰，各血管充盈良好，甲状腺双叶及峡部形态正常，密度均匀，未见占位性病变。喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。双侧颌下腺、腮腺大小形态正常，密度均匀。左颈IV、V区、左侧锁骨上窝见多个淋巴结，边界清，最大短径约11MM，呈不均匀强化或明显强化。右侧第5后肋局部骨质不连续，考虑术后改变，C6椎体、T12椎体及左侧椎板、L2、L3椎体见不规则高密度灶，病变范围较前增大，余所见骨质未见明确破坏征象。肺癌术后、脑转移、淋巴结转移放化疗后复查，对比2014-09-26片：右肺中叶纵膈旁肿块，较前增大，考虑肿瘤复发。右肺新发小结节，考虑转移瘤。右肺下叶后基底段类结节，大致同前，考虑增殖灶。纵隔、双肺门及左颈IV、V区、左侧锁骨上窝多发淋巴结肿大，大致同前。肝内低密度灶，较前增大、增多，考虑转移瘤。肝S8小低密度灶，大致同前，可疑血管瘤。脾内低密度灶，较前未见明显变化，血管瘤?C6椎体、T12椎体及左侧椎板、L2、L3椎体转移瘤，范围较前增大。</t>
+    <t>肺癌术后、脑转移、淋巴结转移放化疗后复查,对比2014-09-26片:右上肺叶术后缺失,右肺中叶纵膈旁见一肿块,大小约23MM×45MM,边界欠清,增强扫描明显强化,病灶周围见少量条索灶,边界欠清。双肺可见散在小结节,边界尚清,直径约2MM~5MM,密度尚均匀。右肺下叶后基底段近胸膜处见一类结节,边界清,短径约3MM,大致同前。右上肺支气管中断,余气管及支气管分支通畅。右侧上气管旁、血管前、主肺动脉窗、隆突下及双肺门见肿大淋巴结,边界尚清,大者大小约15MM×11MM,增强扫描较明显强化。双侧胸腔未见积液。右侧胸膜稍增厚,左侧胸膜无增厚、粘连。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度不均匀。肝内见多个低密度灶,最大者约23MM×19MM,边界欠清,增强扫描轻度强化,较前增大、增多。肝S8见一小低密度灶,直径约5MM,边界清,增强扫描动脉期见少许点状强化,门脉期、延迟期强化范围有扩大。胆囊大小正常,其内未见结石影。肝内胆管、胆总管未见扩张,其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常,密度不均匀,见一结节低密度灶,边界欠清,大小约12MM×12MM,轻度强化,较前变化不大。胰腺大小、形态正常,密度均匀。双肾、双肾上腺所见正常。腹膜后未见肿大淋巴结。双颈结构清晰,各血管充盈良好,甲状腺双叶及峡部形态正常,密度均匀,未见占位性病变。喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。双侧颌下腺、腮腺大小形态正常,密度均匀。左颈IV、V区、左侧锁骨上窝见多个淋巴结,边界清,最大短径约11MM,呈不均匀强化或明显强化。右侧第5后肋局部骨质不连续,考虑术后改变,C6椎体、T12椎体及左侧椎板、L2、L3椎体见不规则高密度灶,病变范围较前增大,余所见骨质未见明确破坏征象。肺癌术后、脑转移、淋巴结转移放化疗后复查,对比2014-09-26片:右肺中叶纵膈旁肿块,较前增大,考虑肿瘤复发。右肺新发小结节,考虑转移瘤。右肺下叶后基底段类结节,大致同前,考虑增殖灶。纵隔、双肺门及左颈IV、V区、左侧锁骨上窝多发淋巴结肿大,大致同前。肝内低密度灶,较前增大、增多,考虑转移瘤。肝S8小低密度灶,大致同前,可疑血管瘤。脾内低密度灶,较前未见明显变化,血管瘤?C6椎体、T12椎体及左侧椎板、L2、L3椎体转移瘤,范围较前增大。</t>
   </si>
   <si>
     <t>右肺中叶纵膈</t>
@@ -1766,19 +1766,19 @@
     <t>脑,淋巴结,肝,C6椎体,T12椎体及左侧椎板,L2,L3椎体,右肺</t>
   </si>
   <si>
-    <t>1.结合临床，右肺癌治疗后，较前(2016-1-20)略缩小2.结合临床，左乳癌治疗后，较前变化不著3.左锁上、纵隔及肺门小或稍大淋巴结，变化不著4.右肺局限性炎症及纤维炎性变，双肺部分结节灶较前增大，可疑转移，部分变化不著，建议观察，双侧叶间胸膜增厚，均变化不著右肺尖示小片状不规则软组织密度影，截面约1.3CM×0.8CM(肺窗)，边缘分叶、毛刺，牵拉邻近胸膜凹陷，增强后呈不均匀强化，其内可见小空泡影。另于右肺野内见多发斑片状及条索状密度增高影，边缘模糊，并可见少许类结节灶，大者直径约0.6CM。另右肺近斜裂胸膜处可见片状密度增高影，形态不规则，内见支气管充气征。双侧叶间胸膜示增厚，左侧叶间胸膜及左肺下叶见小类结节灶，大者直径约0.5CM。左乳外上象限见一不规则软组织结节灶，长径约0.6CM，边缘分叶可见少许毛刺，增强后呈轻度强化。左锁上、纵隔内右上气管旁、气管前腔静脉后、主肺动脉窗区、隆突下、双肺门见多发小或稍大淋巴结，大者短径约0.7CM，部分内可见钙化。</t>
+    <t>1.结合临床,右肺癌治疗后,较前(2016-1-20)略缩小2.结合临床,左乳癌治疗后,较前变化不著3.左锁上、纵隔及肺门小或稍大淋巴结,变化不著4.右肺局限性炎症及纤维炎性变,双肺部分结节灶较前增大,可疑转移,部分变化不著,建议观察,双侧叶间胸膜增厚,均变化不著右肺尖示小片状不规则软组织密度影,截面约1.3CM×0.8CM(肺窗),边缘分叶、毛刺,牵拉邻近胸膜凹陷,增强后呈不均匀强化,其内可见小空泡影。另于右肺野内见多发斑片状及条索状密度增高影,边缘模糊,并可见少许类结节灶,大者直径约0.6CM。另右肺近斜裂胸膜处可见片状密度增高影,形态不规则,内见支气管充气征。双侧叶间胸膜示增厚,左侧叶间胸膜及左肺下叶见小类结节灶,大者直径约0.5CM。左乳外上象限见一不规则软组织结节灶,长径约0.6CM,边缘分叶可见少许毛刺,增强后呈轻度强化。左锁上、纵隔内右上气管旁、气管前腔静脉后、主肺动脉窗区、隆突下、双肺门见多发小或稍大淋巴结,大者短径约0.7CM,部分内可见钙化。</t>
   </si>
   <si>
     <t>右肺,左乳</t>
   </si>
   <si>
-    <t>1.右肺下叶占位，考虑肺癌治疗后，较前(2016-8-29)缩小；双肺结节灶，考虑转移，部分略缩小，部分变化不著；骨转移，大部分变化不著，部分密度略增高2.右肺门及纵隔内稍大淋巴结，变化不著3.甲状腺低密度灶，略增大4.考虑肝囊肿、血管瘤，变化不著右肺下叶近肺门区示软组织结节灶，不均质强化，截面约1.8CM×1.3CM，远端肺野内示斑片密度增高影。双肺内示多发结节灶，大者短径约0.4CM。右肺门及纵隔内示稍大淋巴结，大者短径约0.7CM。甲状腺左叶示低密度灶。扫描野内肝内示类囊性密度灶及结节状明显强化灶，部分肝内胆管略扩张。右乳腺体略增多。部分椎骨及肋骨示骨质破坏。剑突区密度增高。</t>
+    <t>1.右肺下叶占位,考虑肺癌治疗后,较前(2016-8-29)缩小;双肺结节灶,考虑转移,部分略缩小,部分变化不著;骨转移,大部分变化不著,部分密度略增高2.右肺门及纵隔内稍大淋巴结,变化不著3.甲状腺低密度灶,略增大4.考虑肝囊肿、血管瘤,变化不著右肺下叶近肺门区示软组织结节灶,不均质强化,截面约1.8CM×1.3CM,远端肺野内示斑片密度增高影。双肺内示多发结节灶,大者短径约0.4CM。右肺门及纵隔内示稍大淋巴结,大者短径约0.7CM。甲状腺左叶示低密度灶。扫描野内肝内示类囊性密度灶及结节状明显强化灶,部分肝内胆管略扩张。右乳腺体略增多。部分椎骨及肋骨示骨质破坏。剑突区密度增高。</t>
   </si>
   <si>
     <t>双肺,骨</t>
   </si>
   <si>
-    <t>右肺下叶占位，符合肺癌。\U007F双肺门区纵隔多发淋巴结转移，右肺门区为重；并右中、下叶肺内病变考虑癌性淋巴管炎。\U007F左肺多发可疑小结节，转移不除外。右肺下叶软组织密度肿物，边缘尚清，呈浅分叶状，直径约3CM(IMA35肺窗)，细毛刺影与脏层胸膜相连，局部胸膜稍厚并少量胸水。\U007F右侧肺门见团块状影包绕中下叶为主各血管支气管结构，较大层面约7CM×4CM(IMA39)，并向远端肺内延伸，支气管分支狭窄。右肺中叶、下叶支气管血管束明显增粗、紊乱，并边缘模糊及斑片状透亮度降低。纵隔内4、5、7及左侧肺门多发肿大淋巴结。\U007F左肺多发可疑小结节影(IMA33、39)，边缘模糊。左侧未见胸水征象。\U007F扫及胸廓诸骨未见明显骨破坏征象。</t>
+    <t>右肺下叶占位,符合肺癌。\U007F双肺门区纵隔多发淋巴结转移,右肺门区为重;并右中、下叶肺内病变考虑癌性淋巴管炎。\U007F左肺多发可疑小结节,转移不除外。右肺下叶软组织密度肿物,边缘尚清,呈浅分叶状,直径约3CM(IMA35肺窗),细毛刺影与脏层胸膜相连,局部胸膜稍厚并少量胸水。\U007F右侧肺门见团块状影包绕中下叶为主各血管支气管结构,较大层面约7CM×4CM(IMA39),并向远端肺内延伸,支气管分支狭窄。右肺中叶、下叶支气管血管束明显增粗、紊乱,并边缘模糊及斑片状透亮度降低。纵隔内4、5、7及左侧肺门多发肿大淋巴结。\U007F左肺多发可疑小结节影(IMA33、39),边缘模糊。左侧未见胸水征象。\U007F扫及胸廓诸骨未见明显骨破坏征象。</t>
   </si>
   <si>
     <t>3CM</t>
@@ -1787,13 +1787,13 @@
     <t>肺门区纵隔多发淋巴结,左肺</t>
   </si>
   <si>
-    <t>右中肺癌术后，左上肺叶病灶靶向治疗后，与2016-11-28片对比：右中肺叶缺失，右下肺叶外基底段及内基底段可见斑片、条索状灶，边界清，其内可见支气管气象，大致同前。左上肺纵隔旁可见一软组织肿块，大小约35MM×15MM，边界欠清，形态不规则，边缘毛糙，其内见多发钙化点，增强扫描不均匀明显强化，邻近肺组织见斑片灶，边界模糊，见支气管气象，较前稍增大。双肺可见弥漫分布类结节灶，部分边界清，部分边界模糊，最大者直径约8MM，较前增多、增大。气管及余双侧主支气管分支通畅。双下气管旁、双侧肺门、主肺动脉窗、隆突下可见多个淋巴结，最大者位于右肺门约14MM×15MM，部分内见坏死，增强不均匀强化。双侧胸膜稍增厚，双侧胸腔少量积液。甲状腺双叶见多发类圆形低密度灶，大者位于右侧，约12MM×10MM，边界清，增强轻度强化，大致同前。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀，增强扫描未见强化灶。肝内外胆管未见扩张；胆囊大小正常，其内未见结石影。门静脉未见异常。脾大小正常，内见一稍低密灶，边界不清，增强扫描轻度强化，大小约4MM×4MM，大致同前。胰腺大小、形态正常，密度均匀。左肾可见多个类圆形低密度灶，较大者大小约23MM×17MM，边界清，增强未见强化。双肾上腺未见异常。肝门部、腹腔干分支、腹主动脉旁见多个小淋巴结，较大者短径约7MM，边界清，大致同前。左侧肩胛骨、胸骨体、T2右侧附件、T9-10、T12、L1椎体及部分附件、右侧第1、3、6、9肋、左侧第11后肋见骨质破坏。右侧第5、第6后肋骨皮质受损凹陷，呈术后改变。右中肺癌术后，左上肺叶病灶靶向治疗后：双肺弥漫分布的结节，考虑转移，较前增多、增大。左上肺纵隔旁软组织灶，较前稍增大。右下肺条索、斑片灶较前无明显变化。纵隔、肺门及腹腔、腹膜后多发淋巴结，较前未见明显变化。双侧胸腔少量积液。多发骨转移瘤，较前未见明显变化。脾内病灶基本同前。左肾囊肿。甲状腺双叶多发病变，较前未见明显变化。</t>
+    <t>右中肺癌术后,左上肺叶病灶靶向治疗后,与2016-11-28片对比:右中肺叶缺失,右下肺叶外基底段及内基底段可见斑片、条索状灶,边界清,其内可见支气管气象,大致同前。左上肺纵隔旁可见一软组织肿块,大小约35MM×15MM,边界欠清,形态不规则,边缘毛糙,其内见多发钙化点,增强扫描不均匀明显强化,邻近肺组织见斑片灶,边界模糊,见支气管气象,较前稍增大。双肺可见弥漫分布类结节灶,部分边界清,部分边界模糊,最大者直径约8MM,较前增多、增大。气管及余双侧主支气管分支通畅。双下气管旁、双侧肺门、主肺动脉窗、隆突下可见多个淋巴结,最大者位于右肺门约14MM×15MM,部分内见坏死,增强不均匀强化。双侧胸膜稍增厚,双侧胸腔少量积液。甲状腺双叶见多发类圆形低密度灶,大者位于右侧,约12MM×10MM,边界清,增强轻度强化,大致同前。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度均匀,增强扫描未见强化灶。肝内外胆管未见扩张;胆囊大小正常,其内未见结石影。门静脉未见异常。脾大小正常,内见一稍低密灶,边界不清,增强扫描轻度强化,大小约4MM×4MM,大致同前。胰腺大小、形态正常,密度均匀。左肾可见多个类圆形低密度灶,较大者大小约23MM×17MM,边界清,增强未见强化。双肾上腺未见异常。肝门部、腹腔干分支、腹主动脉旁见多个小淋巴结,较大者短径约7MM,边界清,大致同前。左侧肩胛骨、胸骨体、T2右侧附件、T9-10、T12、L1椎体及部分附件、右侧第1、3、6、9肋、左侧第11后肋见骨质破坏。右侧第5、第6后肋骨皮质受损凹陷,呈术后改变。右中肺癌术后,左上肺叶病灶靶向治疗后:双肺弥漫分布的结节,考虑转移,较前增多、增大。左上肺纵隔旁软组织灶,较前稍增大。右下肺条索、斑片灶较前无明显变化。纵隔、肺门及腹腔、腹膜后多发淋巴结,较前未见明显变化。双侧胸腔少量积液。多发骨转移瘤,较前未见明显变化。脾内病灶基本同前。左肾囊肿。甲状腺双叶多发病变,较前未见明显变化。</t>
   </si>
   <si>
     <t>右中肺</t>
   </si>
   <si>
-    <t>右肺中央型肺癌可能大。\U007F右肺门、纵隔及右侧锁骨上多发淋巴结，倾向转移。\U007F双肺多发结节，考虑转移。\U007F左下肺肺气肿及支气管扩张。\U007F右侧胸膜广泛不规则增厚，胸腔积液，考虑转移。\U007F右肋第9肋局部高密度灶，转移不除外。\U007F所及肝内多发低密度灶，请结合腹部检查。右肺中叶见近椭圆形肿块，约63MM×42MM(IM33)，增强呈中等度强化，与右肺下动脉分界不清；右下肺见条片状实变灶；右肺门见肿大淋巴结，较大约23MM×17MM(IM27)。右侧锁骨上、纵隔多发淋巴结，较大约17MM×12MM(IM23)。\U007F双肺散在球形微小结节，均小于5MM。右上肺索条及片状影；左下肺肺气肿及支气管扩张改变。\U007F右侧胸膜广泛不规则增厚，胸腔积液；左侧未见胸水。\U007F右肋第9肋局部高密度灶(IM57)；余胸廓诸骨未见骨质破坏。\U007F所及肝内多发低密度灶。</t>
+    <t>右肺中央型肺癌可能大。\U007F右肺门、纵隔及右侧锁骨上多发淋巴结,倾向转移。\U007F双肺多发结节,考虑转移。\U007F左下肺肺气肿及支气管扩张。\U007F右侧胸膜广泛不规则增厚,胸腔积液,考虑转移。\U007F右肋第9肋局部高密度灶,转移不除外。\U007F所及肝内多发低密度灶,请结合腹部检查。右肺中叶见近椭圆形肿块,约63MM×42MM(IM33),增强呈中等度强化,与右肺下动脉分界不清;右下肺见条片状实变灶;右肺门见肿大淋巴结,较大约23MM×17MM(IM27)。右侧锁骨上、纵隔多发淋巴结,较大约17MM×12MM(IM23)。\U007F双肺散在球形微小结节,均小于5MM。右上肺索条及片状影;左下肺肺气肿及支气管扩张改变。\U007F右侧胸膜广泛不规则增厚,胸腔积液;左侧未见胸水。\U007F右肋第9肋局部高密度灶(IM57);余胸廓诸骨未见骨质破坏。\U007F所及肝内多发低密度灶。</t>
   </si>
   <si>
     <t>63MM×42MM</t>
@@ -1802,19 +1802,19 @@
     <t>纵隔及右侧锁骨上多发淋巴结,双肺,右侧胸膜,右肋第9肋</t>
   </si>
   <si>
-    <t>右乳癌化疗后，右肾体积增大，右肾下极实质内见一类圆形稍高密度灶，边界尚清，大小约12MM×16MM，密度欠均匀，其内似见钙化点，增强后可见强化，低于周围肾实质密度。左肾萎缩，其内见多发囊状低密度灶，边界清楚，大者直径约42MM，边缘见钙化，未见强化。所见肝脏形态可，肝S6可见一稍低密度灶，增强后呈轻度不均匀强化，边界不清，直径约9MM。肝门区未见异常。门静脉充盈尚可。所示胰腺未见确切异常。下腔静脉旁见一淋巴结，大小约11MM×12MM，增强后呈较均匀强化。腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。子宫大小、形态未见明显异常，子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。双侧髂骨、坐骨、耻骨、右侧股骨头及部分腰骶椎椎体及附件骨质破坏，未见软组织肿块。右乳癌化疗后，右肾下极病灶，考虑良性病变可能性大，血管平滑肌脂肪瘤?建议复查。左肾萎缩；左肾多发囊肿。肝S6病灶，大致同前(2015.01.04)，考虑转移瘤可能性大。下腔静脉旁淋巴结增大，可疑转移。双侧髂骨、坐骨、耻骨、右侧股骨头及部分腰骶椎多发骨质破坏，考虑转移。</t>
+    <t>右乳癌化疗后,右肾体积增大,右肾下极实质内见一类圆形稍高密度灶,边界尚清,大小约12MM×16MM,密度欠均匀,其内似见钙化点,增强后可见强化,低于周围肾实质密度。左肾萎缩,其内见多发囊状低密度灶,边界清楚,大者直径约42MM,边缘见钙化,未见强化。所见肝脏形态可,肝S6可见一稍低密度灶,增强后呈轻度不均匀强化,边界不清,直径约9MM。肝门区未见异常。门静脉充盈尚可。所示胰腺未见确切异常。下腔静脉旁见一淋巴结,大小约11MM×12MM,增强后呈较均匀强化。腹主动脉旁未见肿大淋巴结。膀胱充盈良好,境界清楚。子宫大小、形态未见明显异常,子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。双侧髂骨、坐骨、耻骨、右侧股骨头及部分腰骶椎椎体及附件骨质破坏,未见软组织肿块。右乳癌化疗后,右肾下极病灶,考虑良性病变可能性大,血管平滑肌脂肪瘤?建议复查。左肾萎缩;左肾多发囊肿。肝S6病灶,大致同前(2015.01.04),考虑转移瘤可能性大。下腔静脉旁淋巴结增大,可疑转移。双侧髂骨、坐骨、耻骨、右侧股骨头及部分腰骶椎多发骨质破坏,考虑转移。</t>
   </si>
   <si>
     <t>肝S6,双侧髂骨,坐骨,耻骨,右侧股骨头,腰骶椎,肝,下腔静脉旁淋巴结</t>
   </si>
   <si>
-    <t>1.结合临床，右肺癌并阻塞性肺不张、肺炎；右肺结节灶，考虑转移2.左肺类结节灶，建议观察3.肝及左肾低密度结节灶，囊肿可能，建议观察4.左侧肾上腺略饱满，建议观察右肺中叶支气管截断，见一软组织肿块，远端见不张肺组织及索条影，肿块截面约3.7CM×2.3CM，边缘分叶、毛刺，边缘见索条影牵拉邻近胸膜，增强后呈中等不均匀强化。右肺见结节灶，大者长径约1.1CM。左肺(6-31)见一直径不足0.5CM小类结节灶，密度较低。纵隔内隆突下见短径不足1.0CM小淋巴结。肝内见少许低密度结节灶，边缘较清晰，直径不足0.5CM，未见强化。胆、胰、脾、右侧肾上腺及扫描野内右肾未见异常。左肾见直径不足0.5CM小低密度结节灶。左侧肾上腺略饱满。腹腔及腹膜后未见增大淋巴结。</t>
+    <t>1.结合临床,右肺癌并阻塞性肺不张、肺炎;右肺结节灶,考虑转移2.左肺类结节灶,建议观察3.肝及左肾低密度结节灶,囊肿可能,建议观察4.左侧肾上腺略饱满,建议观察右肺中叶支气管截断,见一软组织肿块,远端见不张肺组织及索条影,肿块截面约3.7CM×2.3CM,边缘分叶、毛刺,边缘见索条影牵拉邻近胸膜,增强后呈中等不均匀强化。右肺见结节灶,大者长径约1.1CM。左肺(6-31)见一直径不足0.5CM小类结节灶,密度较低。纵隔内隆突下见短径不足1.0CM小淋巴结。肝内见少许低密度结节灶,边缘较清晰,直径不足0.5CM,未见强化。胆、胰、脾、右侧肾上腺及扫描野内右肾未见异常。左肾见直径不足0.5CM小低密度结节灶。左侧肾上腺略饱满。腹腔及腹膜后未见增大淋巴结。</t>
   </si>
   <si>
     <t>3.7CM×2.3CM</t>
   </si>
   <si>
-    <t>1、左上肺肺门区高代谢结节，首先考虑中心型肺癌，建议支气管镜。纵隔7、8区淋巴结转移。双肺纹理增多，伴多发小结节、小树丫样斑片影，多沿支气管树分布或位于胸膜下，均未见高代谢，性质待定。2、脑部未见明显异常代谢征象。双肺轻度气肿。右下肺钙化灶。前列腺增生伴钙化。右股骨头、T10、L5骨岛。空腹6小时以上，静脉注射显像剂，平静休息60MMIN后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：大脑形态如常，皮层各叶放射性分布均匀。皮层下各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，两侧小脑对称。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。双颈部及锁骨上区未见明显异常淋巴结浓聚。左上肺肺门区见一软组织结节，约2.7CM×2.3CM，边缘毛糙，伴异常放射性浓聚，最大SUV32.98。双肺纹理增多，伴多发小结节、小树丫样斑片影，多沿支气管树分布或位于胸膜下，均未见放射性浓聚。双肺轻度气肿。右下肺见钙化灶。双侧胸膜无增厚，胸水征阴性。纵隔7、8区见肿大淋巴结，较大者约2.6CM×1.7CM，伴异常浓聚，最大SUV分别为15.23和9.18。余纵隔及右肺门未见肿大或异常浓聚淋巴结。心肌显影。胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹盆部可见条索状肠影。腹腔内及腹膜后未见明显肿大或异常浓聚淋巴结。腹水征阴性。膀胱放射性浓聚如常，膀胱壁无增厚。前列腺增大伴钙化，放射性分布大致正常。两侧腹股沟无异常淋巴结显示。视野内轴心骨未见异常放射性浓聚。右股骨头、T10、L5骨岛。视野内皮肤及软组织内未见异常放射性摄取。</t>
+    <t>1、左上肺肺门区高代谢结节,首先考虑中心型肺癌,建议支气管镜。纵隔7、8区淋巴结转移。双肺纹理增多,伴多发小结节、小树丫样斑片影,多沿支气管树分布或位于胸膜下,均未见高代谢,性质待定。2、脑部未见明显异常代谢征象。双肺轻度气肿。右下肺钙化灶。前列腺增生伴钙化。右股骨头、T10、L5骨岛。空腹6小时以上,静脉注射显像剂,平静休息60MMIN后行全身PET及CT断层显像,PET图像经衰减校正及重建后,将PET及CT图像行多平面、多幅显示:大脑形态如常,皮层各叶放射性分布均匀。皮层下各神经核团显影清晰,放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深,白质未见明显低密度影,中线无移位。脑室无扩大,基底节区显示对称。小脑显影如常,两侧小脑对称。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。甲状腺两叶不大,形态可,腺实质内未见异常放射性增高灶。双颈部及锁骨上区未见明显异常淋巴结浓聚。左上肺肺门区见一软组织结节,约2.7CM×2.3CM,边缘毛糙,伴异常放射性浓聚,最大SUV32.98。双肺纹理增多,伴多发小结节、小树丫样斑片影,多沿支气管树分布或位于胸膜下,均未见放射性浓聚。双肺轻度气肿。右下肺见钙化灶。双侧胸膜无增厚,胸水征阴性。纵隔7、8区见肿大淋巴结,较大者约2.6CM×1.7CM,伴异常浓聚,最大SUV分别为15.23和9.18。余纵隔及右肺门未见肿大或异常浓聚淋巴结。心肌显影。胃充盈好,胃壁显影如常。肝脏形态可,轮廓光整,肝叶比例正常,肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常,密度均匀,胆囊壁无增厚。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹盆部可见条索状肠影。腹腔内及腹膜后未见明显肿大或异常浓聚淋巴结。腹水征阴性。膀胱放射性浓聚如常,膀胱壁无增厚。前列腺增大伴钙化,放射性分布大致正常。两侧腹股沟无异常淋巴结显示。视野内轴心骨未见异常放射性浓聚。右股骨头、T10、L5骨岛。视野内皮肤及软组织内未见异常放射性摄取。</t>
   </si>
   <si>
     <t>左上肺肺门区</t>
@@ -1826,7 +1826,7 @@
     <t>纵隔7、8区淋巴结</t>
   </si>
   <si>
-    <t>1.结合临床，右肺下叶癌并右肺门及纵隔淋巴结转移伴阻塞性炎症，均较前(2015-6-16)减小2.左肾血管平滑肌脂肪瘤，左肾囊肿；右肾占位，考虑血管平滑肌脂肪瘤可能性大，变化不著3.双肺慢性炎症右肺下叶可见一小片状软组织肿块影，最大截面约0.8CM×1.3CM，边缘分叶毛糙，增强扫描中等强化。右肺门、隆突下、血管前间隙可见多发融合成团的肿大淋巴结，大者短径约2.0CM，其中肺门区淋巴结包绕中叶外侧段支气管生长致其狭窄，远端部分可见斑片及索条状密度增高影，边缘模糊。余双肺野间质密度增高，右侧为著。肝实质密度均质，胆囊胰腺脾脏未见异常。左肾实质内可见一脂肪密度影，直径约0.9CM，边界清，无强化。另左肾可见一囊性密度灶，直径约0.6CM。右肾实质内混杂密度灶，最大截面约1.5CM×1.9CM，可见少部分脂肪密度，增强扫描呈快进快出表现。腹腔腹膜后未见肿大淋巴结。</t>
+    <t>1.结合临床,右肺下叶癌并右肺门及纵隔淋巴结转移伴阻塞性炎症,均较前(2015-6-16)减小2.左肾血管平滑肌脂肪瘤,左肾囊肿;右肾占位,考虑血管平滑肌脂肪瘤可能性大,变化不著3.双肺慢性炎症右肺下叶可见一小片状软组织肿块影,最大截面约0.8CM×1.3CM,边缘分叶毛糙,增强扫描中等强化。右肺门、隆突下、血管前间隙可见多发融合成团的肿大淋巴结,大者短径约2.0CM,其中肺门区淋巴结包绕中叶外侧段支气管生长致其狭窄,远端部分可见斑片及索条状密度增高影,边缘模糊。余双肺野间质密度增高,右侧为著。肝实质密度均质,胆囊胰腺脾脏未见异常。左肾实质内可见一脂肪密度影,直径约0.9CM,边界清,无强化。另左肾可见一囊性密度灶,直径约0.6CM。右肾实质内混杂密度灶,最大截面约1.5CM×1.9CM,可见少部分脂肪密度,增强扫描呈快进快出表现。腹腔腹膜后未见肿大淋巴结。</t>
   </si>
   <si>
     <t>0.8CM×1.3CM</t>
@@ -1835,7 +1835,7 @@
     <t>右肺门,纵隔淋巴结</t>
   </si>
   <si>
-    <t>左肺门增大，左肺门可见团块状高密度影，与周围组织界限不清，左肺上叶尖后段可见团块状高密度影，边界尚清，可见分叶，其内可见血管集束征，大小约为2.63CM×2.20CM。右肺中叶(36)、下叶外基底段胸膜下可见结节影(S44)。两肺纹理清晰。所示气管支气管影正常。纵隔内可见多发肿大的淋巴结，较大的短颈约为1.56CM。两胸腔无积液征象。心脏大血管未见异常。右侧肩胛骨、胸骨、部分胸椎、肋骨骨质密度不均，可见斑片状低密度影。左肺上叶占位，双侧肺门及纵隔多发软组织肿块，首先考虑周围型肺癌伴淋巴结转移可能，右肺内结节，转移?请随诊或详查；右侧肩胛骨、胸骨、部分胸椎、肋骨多发骨质破坏，考虑转移可能，请结合临床。</t>
+    <t>左肺门增大,左肺门可见团块状高密度影,与周围组织界限不清,左肺上叶尖后段可见团块状高密度影,边界尚清,可见分叶,其内可见血管集束征,大小约为2.63CM×2.20CM。右肺中叶(36)、下叶外基底段胸膜下可见结节影(S44)。两肺纹理清晰。所示气管支气管影正常。纵隔内可见多发肿大的淋巴结,较大的短颈约为1.56CM。两胸腔无积液征象。心脏大血管未见异常。右侧肩胛骨、胸骨、部分胸椎、肋骨骨质密度不均,可见斑片状低密度影。左肺上叶占位,双侧肺门及纵隔多发软组织肿块,首先考虑周围型肺癌伴淋巴结转移可能,右肺内结节,转移?请随诊或详查;右侧肩胛骨、胸骨、部分胸椎、肋骨多发骨质破坏,考虑转移可能,请结合临床。</t>
   </si>
   <si>
     <t>肺</t>
@@ -1844,13 +1844,13 @@
     <t>右肺,纵隔内可见多发肿大的淋巴结,右侧肩胛骨,胸骨,胸椎,肋骨,右肺</t>
   </si>
   <si>
-    <t>1.结合临床，右肺癌治疗后，右肺门纵隔淋巴结转移，较前2014-8-21变化不著；双肺转移，较前明显2.结合临床，左乳癌治疗后较前变化不著右肺上叶示一不规则软组织密度结节灶，截面约1.3CM×1.5CM，边缘分叶、毛刺，牵拉邻近胸膜凹陷，增强后呈较显著强化。右肺上叶前段示一混合磨玻璃密度灶，截面约3.6CM×1.7CM，边缘毛刺牵拉邻近胸膜凹陷，内见支气管充气征。右肺中叶近斜裂胸膜处示一软组织肿块，截面约1.5CM×2.0CM，边缘毛刺，增强后呈较显著强化。另右肺跨斜裂胸膜处，上下叶内见一混合磨玻璃密度灶，截面约4.0CM×1.9CM，形态不规则，牵拉邻近胸膜凹陷，内见支气管充气征。余双肺见多发结节灶，大者直径约0.5CM，部分内见小空泡。左乳见一不规则软组织结节灶，截面约0.7CM×1.0CM，边缘分叶可见少许毛刺，增强后呈轻度强化。纵隔内右上气管旁、气管前腔静脉后、右肺门见多发增大淋巴结，大者短径约1.0CM，部分内可见钙化。</t>
+    <t>1.结合临床,右肺癌治疗后,右肺门纵隔淋巴结转移,较前2014-8-21变化不著;双肺转移,较前明显2.结合临床,左乳癌治疗后较前变化不著右肺上叶示一不规则软组织密度结节灶,截面约1.3CM×1.5CM,边缘分叶、毛刺,牵拉邻近胸膜凹陷,增强后呈较显著强化。右肺上叶前段示一混合磨玻璃密度灶,截面约3.6CM×1.7CM,边缘毛刺牵拉邻近胸膜凹陷,内见支气管充气征。右肺中叶近斜裂胸膜处示一软组织肿块,截面约1.5CM×2.0CM,边缘毛刺,增强后呈较显著强化。另右肺跨斜裂胸膜处,上下叶内见一混合磨玻璃密度灶,截面约4.0CM×1.9CM,形态不规则,牵拉邻近胸膜凹陷,内见支气管充气征。余双肺见多发结节灶,大者直径约0.5CM,部分内见小空泡。左乳见一不规则软组织结节灶,截面约0.7CM×1.0CM,边缘分叶可见少许毛刺,增强后呈轻度强化。纵隔内右上气管旁、气管前腔静脉后、右肺门见多发增大淋巴结,大者短径约1.0CM,部分内可见钙化。</t>
   </si>
   <si>
     <t>右肺门纵隔淋巴结,双肺</t>
   </si>
   <si>
-    <t>考虑为胰头MT伴肝内外胆管扩张；灶周小淋巴结，请结合临床；肝脏右叶囊肿；胆囊增大；子宫肌瘤；右乳MT术后改变；右肺上叶后段慢性炎性小结节可能性大，建议随访；甲状腺密度欠均匀，请结合超声检查。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。双侧上颌窦内见少许软组织密度影，考虑为慢性炎症；余副鼻窦未见明显异常。颈部PET/CT图像示双侧颌下、颈血管旁、颈后三角及锁骨区见多枚糖代谢轻度增高的淋巴结，糖代谢最高且较大者及位于右侧颈血管旁，大小约为13.2MM×8.4MM，最大SUV值约为3.7，考虑为慢性炎症；口咽、喉咽部无占位；甲状腺无肿大，其内密度不均匀，未见明显糖代谢异常增高。胸部PET/CT图像示右乳MT术后缺如，术区未见明显糖代谢异常增高灶或占位；双肺纹理增多，右肺上叶后段见一直径约为5.0MM、不伴糖代谢增高的小结节，余双肺野未见明显糖代谢异常增高或占位；各级支气管腔通畅；纵隔、双肺门、腋窝无明显糖代谢异常增高灶或肿大淋巴结；双侧胸膜无增厚；双侧胸腔无积液；心脏无明显增大；左侧乳腺无殊。腹部PET/CT图像示胰头部糖代谢异常增高的软组织肿块影，大小约为36.0MM×28.8MM，最大SUV值为6.4，其上段胆总管及肝内胆管明显扩张；灶周见小淋巴结，直径约为6.0MM。肝脏表面光整，各叶比例匀称，肝脏右叶近膈顶见一大小约为16.5MM×10.7MM、不伴糖代谢增高的囊性灶，余肝脏实质未见明显糖代谢异常增高或占位；胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；脾脏不大，密度均，未见明显占位；胆囊增大，壁张力增高，其内密度稍增高；双肾、肾上腺无殊；腹膜后无明显糖代谢异常增高灶或肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈差；子宫前壁见一直径约为15.8MM的结节；双附件区未见明显占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像示全身骨骼未见明显糖代谢异常增高。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质稍增生，考虑为退行性变。</t>
+    <t>考虑为胰头MT伴肝内外胆管扩张;灶周小淋巴结,请结合临床;肝脏右叶囊肿;胆囊增大;子宫肌瘤;右乳MT术后改变;右肺上叶后段慢性炎性小结节可能性大,建议随访;甲状腺密度欠均匀,请结合超声检查。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼内肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。双侧上颌窦内见少许软组织密度影,考虑为慢性炎症;余副鼻窦未见明显异常。颈部PET/CT图像示双侧颌下、颈血管旁、颈后三角及锁骨区见多枚糖代谢轻度增高的淋巴结,糖代谢最高且较大者及位于右侧颈血管旁,大小约为13.2MM×8.4MM,最大SUV值约为3.7,考虑为慢性炎症;口咽、喉咽部无占位;甲状腺无肿大,其内密度不均匀,未见明显糖代谢异常增高。胸部PET/CT图像示右乳MT术后缺如,术区未见明显糖代谢异常增高灶或占位;双肺纹理增多,右肺上叶后段见一直径约为5.0MM、不伴糖代谢增高的小结节,余双肺野未见明显糖代谢异常增高或占位;各级支气管腔通畅;纵隔、双肺门、腋窝无明显糖代谢异常增高灶或肿大淋巴结;双侧胸膜无增厚;双侧胸腔无积液;心脏无明显增大;左侧乳腺无殊。腹部PET/CT图像示胰头部糖代谢异常增高的软组织肿块影,大小约为36.0MM×28.8MM,最大SUV值为6.4,其上段胆总管及肝内胆管明显扩张;灶周见小淋巴结,直径约为6.0MM。肝脏表面光整,各叶比例匀称,肝脏右叶近膈顶见一大小约为16.5MM×10.7MM、不伴糖代谢增高的囊性灶,余肝脏实质未见明显糖代谢异常增高或占位;胃壁均匀性轻度糖代谢生理性增强;肠道呈线型生理性糖代谢增强;脾脏不大,密度均,未见明显占位;胆囊增大,壁张力增高,其内密度稍增高;双肾、肾上腺无殊;腹膜后无明显糖代谢异常增高灶或肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈差;子宫前壁见一直径约为15.8MM的结节;双附件区未见明显占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET图像示全身骨骼未见明显糖代谢异常增高。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质稍增生,考虑为退行性变。</t>
   </si>
   <si>
     <t>胰头,右乳</t>
@@ -1859,19 +1859,19 @@
     <t>36.0MM×28.8MM</t>
   </si>
   <si>
-    <t>结合临床，右乳腺癌并右腋窝淋巴结肿大，考虑转移；左腋窝淋巴结肿大右乳头上方腺体内见一软组织肿块影，边缘模糊，肿块最大截面约2.9CM×1.4CM，增强后示显著强化。左侧乳腺未见爱你异常。双侧腋窝内见多发肿大淋巴结，大者位于右侧，短径约1.5CM。双侧肺野清晰，气管及各级支气管开口通畅，未见异常。</t>
+    <t>结合临床,右乳腺癌并右腋窝淋巴结肿大,考虑转移;左腋窝淋巴结肿大右乳头上方腺体内见一软组织肿块影,边缘模糊,肿块最大截面约2.9CM×1.4CM,增强后示显著强化。左侧乳腺未见爱你异常。双侧腋窝内见多发肿大淋巴结,大者位于右侧,短径约1.5CM。双侧肺野清晰,气管及各级支气管开口通畅,未见异常。</t>
   </si>
   <si>
     <t>2.9CM×1.4CM</t>
   </si>
   <si>
-    <t>左肺上叶尖后段见不规则软组织结节，范围约13MM×10MM(IM12)，边缘模糊，与胸膜关系密切。左肺上叶支气管血管束旁另见实性结节，范围约10MM×7MM(IM16)。左肺上叶小叶间隔增厚，左肺下叶见片状实变。右肺上叶尖段胸膜下见小斑片灶(IM7)，右肺下叶胸膜下见多发索条。纵隔2-6组及左肺门见多发肿大淋巴结，大者约30MM×18MM(IM18)，双肺门、锁骨上区及双腋下未见肿大淋巴结。左侧胸膜增厚，部分呈结节样增厚，左侧胸腔见液体密度。左侧胸腔引流管置入后。右侧胸膜光滑，未见胸水征象。扫及胸廓诸骨未见明确破坏征象。扫及腹主动脉旁见增大淋巴结。左肺上叶尖后段结节，符合恶性征象，建议对比老片。左肺上叶小结节，性质待定，追查。纵隔及左肺门肿大淋巴结转移。左侧胸膜增厚伴左侧大量胸腔积液，胸膜转移可能大；继发左肺下叶膨胀不全。右肺上叶斑片灶及下叶索条，倾向陈旧病变。纵隔多发肿大淋巴结，考虑转移。</t>
+    <t>左肺上叶尖后段见不规则软组织结节,范围约13MM×10MM(IM12),边缘模糊,与胸膜关系密切。左肺上叶支气管血管束旁另见实性结节,范围约10MM×7MM(IM16)。左肺上叶小叶间隔增厚,左肺下叶见片状实变。右肺上叶尖段胸膜下见小斑片灶(IM7),右肺下叶胸膜下见多发索条。纵隔2-6组及左肺门见多发肿大淋巴结,大者约30MM×18MM(IM18),双肺门、锁骨上区及双腋下未见肿大淋巴结。左侧胸膜增厚,部分呈结节样增厚,左侧胸腔见液体密度。左侧胸腔引流管置入后。右侧胸膜光滑,未见胸水征象。扫及胸廓诸骨未见明确破坏征象。扫及腹主动脉旁见增大淋巴结。左肺上叶尖后段结节,符合恶性征象,建议对比老片。左肺上叶小结节,性质待定,追查。纵隔及左肺门肿大淋巴结转移。左侧胸膜增厚伴左侧大量胸腔积液,胸膜转移可能大;继发左肺下叶膨胀不全。右肺上叶斑片灶及下叶索条,倾向陈旧病变。纵隔多发肿大淋巴结,考虑转移。</t>
   </si>
   <si>
     <t>胸膜,纵隔及左肺门肿大淋巴结</t>
   </si>
   <si>
-    <t>考虑右上肺周围型肺癌伴双肺门、纵隔、左锁骨上区淋巴结转移。右颈内静脉、右头臂干、上腔静脉癌栓形成。双肺所发结节及斑片影，考虑转移。右上肺胸膜结节，考虑转移。左锁骨上区小淋巴结，性质待定。右侧少量胸腔积液。心包积液。双肾上腺结节状增粗，可疑转移瘤。T1椎体病灶，可疑转移瘤。右肺上叶可见一不规则肿物，最大层面大小约58MM×53MM，边缘毛糙，可见分叶及短毛刺，密度欠均匀；病灶包绕右肺上叶支气管及其分支，右肺上叶尖段支气管闭塞于病灶内部闭塞、截断，病灶包绕右肺动脉主干及右肺上叶动脉，上腔静脉管腔内见大片充盈缺损，右侧颈内静脉(舌骨水平至汇入头臂静脉段)、右头臂静脉完全闭塞。病灶与纵隔与右肺门肿大淋巴结融合，分界不清；病灶周围右肺上叶内见多小斑片影，边界欠清。双肺见多发散在斑片影及结节影，边界欠清，较大者约20MM×18MM。纵隔(血管前、双上下气管旁、主动脉旁、主肺动脉窗、隆突下)、双肺门可见多个肿大淋巴结，大部分融合，较大者约35MM×35MM，边界不清，增强扫描不均匀明显强化。右锁上见多个肿大淋巴结，大部分融合，大小约44MM×37MM，边界不清，增强扫描不均匀明显强化，部分呈环形强化。左锁骨上区见一小淋巴结，直径约5MM，边界清，增强扫描较明显强化。心包见积液。右侧胸腔见少量积液。左侧胸腔未见明显积液。右上肺胸膜局部见扁丘状隆起，较大者约12MM×10MM，边界清。左侧胸膜未见明显增厚。腋窝未见明确肿大淋巴结。双颈结构清晰，各血管充盈良好，甲状腺双叶及峡部形态正常，密度均匀，未见占位性病变；喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称；双侧颌下腺、腮腺大小形态正常，密度均匀；双颈未见肿大淋巴结。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀；肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影；肝门区未见异常；门静脉未见异常；脾大小正常，密度均匀；胰腺大小、形态正常，密度均匀；双侧肾上腺结合部见结节状增粗(SE11，IM287、295)，大小分别约7MM(左侧)、5MM(右侧)，增强扫描不均匀强化。双肾未见异常；膈脚后、腹主动脉旁未见肿大淋巴结。T1椎体可见小低密影，边缘模糊，余扫描层面所见骨质未见明确破坏征象。</t>
+    <t>考虑右上肺周围型肺癌伴双肺门、纵隔、左锁骨上区淋巴结转移。右颈内静脉、右头臂干、上腔静脉癌栓形成。双肺所发结节及斑片影,考虑转移。右上肺胸膜结节,考虑转移。左锁骨上区小淋巴结,性质待定。右侧少量胸腔积液。心包积液。双肾上腺结节状增粗,可疑转移瘤。T1椎体病灶,可疑转移瘤。右肺上叶可见一不规则肿物,最大层面大小约58MM×53MM,边缘毛糙,可见分叶及短毛刺,密度欠均匀;病灶包绕右肺上叶支气管及其分支,右肺上叶尖段支气管闭塞于病灶内部闭塞、截断,病灶包绕右肺动脉主干及右肺上叶动脉,上腔静脉管腔内见大片充盈缺损,右侧颈内静脉(舌骨水平至汇入头臂静脉段)、右头臂静脉完全闭塞。病灶与纵隔与右肺门肿大淋巴结融合,分界不清;病灶周围右肺上叶内见多小斑片影,边界欠清。双肺见多发散在斑片影及结节影,边界欠清,较大者约20MM×18MM。纵隔(血管前、双上下气管旁、主动脉旁、主肺动脉窗、隆突下)、双肺门可见多个肿大淋巴结,大部分融合,较大者约35MM×35MM,边界不清,增强扫描不均匀明显强化。右锁上见多个肿大淋巴结,大部分融合,大小约44MM×37MM,边界不清,增强扫描不均匀明显强化,部分呈环形强化。左锁骨上区见一小淋巴结,直径约5MM,边界清,增强扫描较明显强化。心包见积液。右侧胸腔见少量积液。左侧胸腔未见明显积液。右上肺胸膜局部见扁丘状隆起,较大者约12MM×10MM,边界清。左侧胸膜未见明显增厚。腋窝未见明确肿大淋巴结。双颈结构清晰,各血管充盈良好,甲状腺双叶及峡部形态正常,密度均匀,未见占位性病变;喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称;双侧颌下腺、腮腺大小形态正常,密度均匀;双颈未见肿大淋巴结。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度均匀;肝内胆管正常,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影;肝门区未见异常;门静脉未见异常;脾大小正常,密度均匀;胰腺大小、形态正常,密度均匀;双侧肾上腺结合部见结节状增粗(SE11,IM287、295),大小分别约7MM(左侧)、5MM(右侧),增强扫描不均匀强化。双肾未见异常;膈脚后、腹主动脉旁未见肿大淋巴结。T1椎体可见小低密影,边缘模糊,余扫描层面所见骨质未见明确破坏征象。</t>
   </si>
   <si>
     <t>58MM×53MM</t>
@@ -1880,13 +1880,13 @@
     <t>双肺门,纵隔,左锁骨上区淋巴结,双肺,右上肺胸膜,双肾上腺,T1椎体</t>
   </si>
   <si>
-    <t>左乳上象限团块及其旁小结节，考虑乳腺癌可能性大。左侧腋窝肿大淋巴结，考虑转移。左乳外上象限小片状强化灶，考虑增殖灶可能性大。左肺下叶胸膜下小结节，考虑增殖灶可能性大，建议复查。右肺中叶纤维增殖灶。脾内多发低密度灶，性质待定，血管瘤?转移瘤?建议MR检查。副脾。肝脏未见明确病变。颈部未见明确病变。左乳上象限可见一异常密度团块，边界欠清，范围约41MM×31MM×42MM，密度欠均匀，增强后可见边缘明显强化，病灶后缘与胸壁软组织分界欠清，病灶上极外侧可见一小结节，直径约3门脉，亦呈边缘强化。左乳外上象限腺体内见一小片状强化影，边界尚清，大小约6MM×7MM。左侧腋窝可见肿大淋巴结，边界欠清，大者大小约12MM×18MM，增强后呈不均匀强化。右侧乳腺形态、密度尚可，未见异常强化灶。右侧腋窝未见肿大淋巴结。左肺下叶外基底段胸膜下可见小结节灶，直径约2MM，边界清楚。右肺中叶内侧段可见散在索条，边界尚清。余双肺纹理尚清，未见明确实质性病变。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏形态正常，各叶比例尚可，其外形轮廓光整，密度均匀，未见异常强化表现。肝内胆管正常，胆囊大小正常，胆总管未见扩张，其内均未见结石影。门静脉充盈尚可。脾大小正常，脾内可见散在低密度灶，边界尚清，大者直径约10MM，增强后动脉期强化不明显，门脉期及平衡期似见轻度强化，范围略显缩小。脾周见小结节，大者直径约8MM，强化与脾一致。胰腺未见异常。所示双肾未见异常。双肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。颈部结构清晰，各血管充盈良好，甲状腺双叶及峡部形态正常，密度均匀，未见占位性病变；喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。双侧颌下腺、腮腺大小形态正常，密度均匀。颈部未见肿大淋巴结。所见骨质结构未见破坏征象。</t>
+    <t>左乳上象限团块及其旁小结节,考虑乳腺癌可能性大。左侧腋窝肿大淋巴结,考虑转移。左乳外上象限小片状强化灶,考虑增殖灶可能性大。左肺下叶胸膜下小结节,考虑增殖灶可能性大,建议复查。右肺中叶纤维增殖灶。脾内多发低密度灶,性质待定,血管瘤?转移瘤?建议MR检查。副脾。肝脏未见明确病变。颈部未见明确病变。左乳上象限可见一异常密度团块,边界欠清,范围约41MM×31MM×42MM,密度欠均匀,增强后可见边缘明显强化,病灶后缘与胸壁软组织分界欠清,病灶上极外侧可见一小结节,直径约3门脉,亦呈边缘强化。左乳外上象限腺体内见一小片状强化影,边界尚清,大小约6MM×7MM。左侧腋窝可见肿大淋巴结,边界欠清,大者大小约12MM×18MM,增强后呈不均匀强化。右侧乳腺形态、密度尚可,未见异常强化灶。右侧腋窝未见肿大淋巴结。左肺下叶外基底段胸膜下可见小结节灶,直径约2MM,边界清楚。右肺中叶内侧段可见散在索条,边界尚清。余双肺纹理尚清,未见明确实质性病变。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏形态正常,各叶比例尚可,其外形轮廓光整,密度均匀,未见异常强化表现。肝内胆管正常,胆囊大小正常,胆总管未见扩张,其内均未见结石影。门静脉充盈尚可。脾大小正常,脾内可见散在低密度灶,边界尚清,大者直径约10MM,增强后动脉期强化不明显,门脉期及平衡期似见轻度强化,范围略显缩小。脾周见小结节,大者直径约8MM,强化与脾一致。胰腺未见异常。所示双肾未见异常。双肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。颈部结构清晰,各血管充盈良好,甲状腺双叶及峡部形态正常,密度均匀,未见占位性病变;喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。双侧颌下腺、腮腺大小形态正常,密度均匀。颈部未见肿大淋巴结。所见骨质结构未见破坏征象。</t>
   </si>
   <si>
     <t>左侧腋窝肿大淋巴结,脾</t>
   </si>
   <si>
-    <t>1.右肺下叶癌并右侧胸膜转移、纵隔、双锁上、右侧心膈角多发淋巴结转移、双肺多发转移，较前2014-9-1好转；2.右侧胸腔积液较前减少；3.T11骨转移，溶骨性改变较前减少，部分密度增高，考虑为骨质修复，考虑好转右肺下叶后基底段可见一软组织肿块，边缘分叶毛刺，与邻近胸膜关系密切，最大截面约为2.5CM×2.0CM(纵隔窗)，增强后中度强化，双肺野内可见多发大小不一的结节影，大者长径约为1.4CM，纵隔内右上气管旁、腔静脉后、主肺动脉窗区、隆突下、双锁上、右侧心膈角区可见多发肿大淋巴结，大者短径约为0.9CM；右侧胸膜条形增厚伴强化，右侧胸腔可见液性密度影。T11椎体可见溶骨性骨质破坏影。</t>
+    <t>1.右肺下叶癌并右侧胸膜转移、纵隔、双锁上、右侧心膈角多发淋巴结转移、双肺多发转移,较前2014-9-1好转;2.右侧胸腔积液较前减少;3.T11骨转移,溶骨性改变较前减少,部分密度增高,考虑为骨质修复,考虑好转右肺下叶后基底段可见一软组织肿块,边缘分叶毛刺,与邻近胸膜关系密切,最大截面约为2.5CM×2.0CM(纵隔窗),增强后中度强化,双肺野内可见多发大小不一的结节影,大者长径约为1.4CM,纵隔内右上气管旁、腔静脉后、主肺动脉窗区、隆突下、双锁上、右侧心膈角区可见多发肿大淋巴结,大者短径约为0.9CM;右侧胸膜条形增厚伴强化,右侧胸腔可见液性密度影。T11椎体可见溶骨性骨质破坏影。</t>
   </si>
   <si>
     <t>2.5CM×2.0CM</t>
@@ -1895,13 +1895,13 @@
     <t>右侧胸膜,纵隔,双锁上,右侧心膈角多发淋巴结,双肺,T11</t>
   </si>
   <si>
-    <t>左肺下叶支气管狭窄，局部见软组织密度结节灶，增强后病变呈不均匀强化，远端肺野内可见斑片状密度增高影。左肺上叶透光区略示增高。左肺门10区及11区、纵隔内8R、8L、7区见增大淋巴结，并相互融合，大者短径约1.8CM；4R、4L区见稍大淋巴结；增强后不均匀强化。肝左叶见一大小约6.2CM×4.8CM囊性密度灶，厚壁，见少许壁结节向腔内突出，增强后壁结节可见强化。病变周期肝实质动脉期见片状一过性显著强化区，考虑为灌注异常。门静脉左支受压变形。胆囊未见异常。胰腺颈部略示一长径约0.6CM低密度灶，边缘略示模糊。脾、双肾及肾上腺未见异常。腹腔及腹膜后未见显著增大淋巴结。1.左肺下叶中心型肺癌伴阻塞性炎症，较前2015-09-08略好转；左肺门、纵隔淋巴结转移，部分变化不著，部分略增大2.肝左叶囊实性占位，伴肝内胆管轻度扩张，考虑转移可能性大，较前缩小3.胰腺略示低密度灶，考虑转移，较前变化不著</t>
+    <t>左肺下叶支气管狭窄,局部见软组织密度结节灶,增强后病变呈不均匀强化,远端肺野内可见斑片状密度增高影。左肺上叶透光区略示增高。左肺门10区及11区、纵隔内8R、8L、7区见增大淋巴结,并相互融合,大者短径约1.8CM;4R、4L区见稍大淋巴结;增强后不均匀强化。肝左叶见一大小约6.2CM×4.8CM囊性密度灶,厚壁,见少许壁结节向腔内突出,增强后壁结节可见强化。病变周期肝实质动脉期见片状一过性显著强化区,考虑为灌注异常。门静脉左支受压变形。胆囊未见异常。胰腺颈部略示一长径约0.6CM低密度灶,边缘略示模糊。脾、双肾及肾上腺未见异常。腹腔及腹膜后未见显著增大淋巴结。1.左肺下叶中心型肺癌伴阻塞性炎症,较前2015-09-08略好转;左肺门、纵隔淋巴结转移,部分变化不著,部分略增大2.肝左叶囊实性占位,伴肝内胆管轻度扩张,考虑转移可能性大,较前缩小3.胰腺略示低密度灶,考虑转移,较前变化不著</t>
   </si>
   <si>
     <t>肝左叶,胰腺,左肺门,纵隔淋巴结</t>
   </si>
   <si>
-    <t>右侧乳癌术后胸壁、胸膜、淋巴结转移化疗后，与2013-6-24片比较：右侧乳腺缺失，右侧胸壁皮肤局部增厚，部分区域呈结节样，最厚处约4MM，较前片增厚。后方脂肪间隙消失。左侧乳腺未见明确病变。双侧腋窝未见肿大淋巴结。右侧胸膜呈不均匀增厚，最厚处约10MM，密度不均匀，增强扫描呈较明显强化，较前片增厚。右侧胸膜腔内见少量积液。右肺体积缩小，密度增高，肺纹理聚拢。右肺上叶前段、右肺中叶内段、右肺下叶后基底段见片状高密度影，增强扫描强化明显，内见支气管气象，范围较前稍增大。气管及支气管分枝通畅。左肺上叶下舌段见片状毛玻璃样病变，密度较均匀，边界模糊。右上、下气管旁、隆突下、双肺门、食管旁见数枚肿大淋巴结，最大者约57MM×25MM，相互融合，增强不均匀强化，部分淋巴结与气管后壁、食管分界不清，较前稍增大。左侧叶间胸膜见局灶性稍增厚，较前未见明显变化。肝脏形态未见异常，其外形轮廓光整，密度普遍减低，肝内未见结节、肿块影，同前相似。肝内胆管未见扩张，其内未见结石影。胆囊其内未见结石影。胆总管未见扩张，其内未见结石影。肝门区未见明确病变。门静脉未见异常。脾不大，密度均匀。胰腺大小、形态未见异常，密度均匀。双肾未见异常。双肾上腺未见肿物。右肾上极水平下腔静脉后方见一肿大淋巴结，大小约23MM×15MM，增强扫描强化欠均匀，较前未见明显变化。扫描所见骨质未见骨质破坏征象。甲状腺右侧叶体积增大，增强扫描强化欠均匀，未见明显变化。右侧乳癌术后右胸壁、胸膜、淋巴结转移化疗后。右胸壁皮肤局限性增厚，符合肿瘤复发。纵隔、双肺门淋巴结转移，较前增大。右侧胸膜增厚、多发结节并胸腔积液，右胸膜结节较前增大。左侧叶间胸膜局限性稍增厚，较前未见明显变化。右肺肺不张及炎症，范围较前稍增大。左肺上叶下舌段片状病变，考虑炎症可能性大。脂肪肝；下腔静脉后方淋巴结肿大，考虑转移，未见明显变化。甲状腺右侧叶改变，考虑结节性甲状腺肿可能性大。</t>
+    <t>右侧乳癌术后胸壁、胸膜、淋巴结转移化疗后,与2013-6-24片比较:右侧乳腺缺失,右侧胸壁皮肤局部增厚,部分区域呈结节样,最厚处约4MM,较前片增厚。后方脂肪间隙消失。左侧乳腺未见明确病变。双侧腋窝未见肿大淋巴结。右侧胸膜呈不均匀增厚,最厚处约10MM,密度不均匀,增强扫描呈较明显强化,较前片增厚。右侧胸膜腔内见少量积液。右肺体积缩小,密度增高,肺纹理聚拢。右肺上叶前段、右肺中叶内段、右肺下叶后基底段见片状高密度影,增强扫描强化明显,内见支气管气象,范围较前稍增大。气管及支气管分枝通畅。左肺上叶下舌段见片状毛玻璃样病变,密度较均匀,边界模糊。右上、下气管旁、隆突下、双肺门、食管旁见数枚肿大淋巴结,最大者约57MM×25MM,相互融合,增强不均匀强化,部分淋巴结与气管后壁、食管分界不清,较前稍增大。左侧叶间胸膜见局灶性稍增厚,较前未见明显变化。肝脏形态未见异常,其外形轮廓光整,密度普遍减低,肝内未见结节、肿块影,同前相似。肝内胆管未见扩张,其内未见结石影。胆囊其内未见结石影。胆总管未见扩张,其内未见结石影。肝门区未见明确病变。门静脉未见异常。脾不大,密度均匀。胰腺大小、形态未见异常,密度均匀。双肾未见异常。双肾上腺未见肿物。右肾上极水平下腔静脉后方见一肿大淋巴结,大小约23MM×15MM,增强扫描强化欠均匀,较前未见明显变化。扫描所见骨质未见骨质破坏征象。甲状腺右侧叶体积增大,增强扫描强化欠均匀,未见明显变化。右侧乳癌术后右胸壁、胸膜、淋巴结转移化疗后。右胸壁皮肤局限性增厚,符合肿瘤复发。纵隔、双肺门淋巴结转移,较前增大。右侧胸膜增厚、多发结节并胸腔积液,右胸膜结节较前增大。左侧叶间胸膜局限性稍增厚,较前未见明显变化。右肺肺不张及炎症,范围较前稍增大。左肺上叶下舌段片状病变,考虑炎症可能性大。脂肪肝;下腔静脉后方淋巴结肿大,考虑转移,未见明显变化。甲状腺右侧叶改变,考虑结节性甲状腺肿可能性大。</t>
   </si>
   <si>
     <t>右侧乳</t>
@@ -1910,13 +1910,13 @@
     <t>胸膜,淋巴结,右胸壁,胸膜,淋巴结,纵隔,双肺门淋巴结,下腔静脉后方淋巴结</t>
   </si>
   <si>
-    <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET/CT图像示左侧颞叶见伴糖代谢减低的大片状稍低密度影，边界不清晰，邻近脑池受压变窄，中线结构未见明显移位；余脑实质未见明显糖代谢异常或占位。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。副鼻窦未见明显异常。颈部PET/CT图像示右侧锁骨区见伴糖代谢增高的淋巴结，糖代谢最高且较大者大小约为11.2MM×9.0MM，最大SUV值为3.0；甲状腺双叶无肿大，密度欠均匀，右叶伴糖代谢增高，最大SUV值为3.2；余颈部及左侧锁骨区未见明显糖代谢异常增高灶或肿大淋巴结；口咽、喉咽无殊。胸部PET/CT图像示左肺上叶尖后段见伴糖代谢异常增高的环形结节影，大小约为8.7MM×6.9MM，最大SUV值为9.2；右肺上叶尖段胸膜下见伴糖代谢轻度增高的片状实变影，范围约为37.2MM×9.47MM，最大SUV值为2.1，与邻近胸膜分界不清；右肺上、下叶及左肺上、下叶见多发不伴糖代谢异常增高的小结节影，直径均小于5.0MM；两肺野散在少许斑片条索影及小囊状透亮影；胸廓入口处右侧气管食管沟、腔静脉气管间隙、主肺动脉窗、气管隆突下、右肺门见多发淋巴结，部分伴糖代谢增高，糖代谢最高且较大者位于右肺门，大小约为11.8MM×8.8MM，最大SUV值为4.5；左肺门、双侧腋窝未见明显糖代谢异常增高灶或肿大淋巴结；双侧胸腔无积液；心脏无明显增大。腹部PET图像示胃壁、肠道呈生理性糖代谢增强；肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫示肝脏表面光整，各叶比例匀称，内见多发囊性低密度影，较大者位于左叶，大小约为8.3MM×7.4MM；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；左肾上极见直径约为6.7MM的囊性灶；胆囊、胰、右肾、双侧肾上腺未见明显占位；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET/CT图像示肛管糖代谢增高，最大SUV值为5.2，考虑为生理性摄取或炎性病变可能；膀胱充盈差，内见显像剂生理性积聚；余肠道呈生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强；膀胱充盈，壁光滑无增厚；双侧精囊腺形态可；双侧膀胱精囊三角对称；前列腺无明显增大，密度均；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见糖代谢异常增高。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示全身多处骨骼见点状致密影，考虑为“骨岛”可能；脊柱多个椎体及椎小关节骨质增生，提示为退行性改变。考虑为左肺上叶尖后段周围型MT可能；左侧颞叶糖代谢减低的稍低密度灶，MT待排，请结合增强MRI检查；右肺上叶尖段陈旧灶可能；两肺上、下叶小结节，请结合临床随访；两肺少许慢性炎症及轻度气肿；右侧锁骨区、纵隔、右侧肺门淋巴结炎性病变可能；甲状腺双叶良性病变可能，请结合超声检查；肝脏囊肿；左肾囊肿。</t>
+    <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET/CT图像示左侧颞叶见伴糖代谢减低的大片状稍低密度影,边界不清晰,邻近脑池受压变窄,中线结构未见明显移位;余脑实质未见明显糖代谢异常或占位。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼外肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。副鼻窦未见明显异常。颈部PET/CT图像示右侧锁骨区见伴糖代谢增高的淋巴结,糖代谢最高且较大者大小约为11.2MM×9.0MM,最大SUV值为3.0;甲状腺双叶无肿大,密度欠均匀,右叶伴糖代谢增高,最大SUV值为3.2;余颈部及左侧锁骨区未见明显糖代谢异常增高灶或肿大淋巴结;口咽、喉咽无殊。胸部PET/CT图像示左肺上叶尖后段见伴糖代谢异常增高的环形结节影,大小约为8.7MM×6.9MM,最大SUV值为9.2;右肺上叶尖段胸膜下见伴糖代谢轻度增高的片状实变影,范围约为37.2MM×9.47MM,最大SUV值为2.1,与邻近胸膜分界不清;右肺上、下叶及左肺上、下叶见多发不伴糖代谢异常增高的小结节影,直径均小于5.0MM;两肺野散在少许斑片条索影及小囊状透亮影;胸廓入口处右侧气管食管沟、腔静脉气管间隙、主肺动脉窗、气管隆突下、右肺门见多发淋巴结,部分伴糖代谢增高,糖代谢最高且较大者位于右肺门,大小约为11.8MM×8.8MM,最大SUV值为4.5;左肺门、双侧腋窝未见明显糖代谢异常增高灶或肿大淋巴结;双侧胸腔无积液;心脏无明显增大。腹部PET图像示胃壁、肠道呈生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫示肝脏表面光整,各叶比例匀称,内见多发囊性低密度影,较大者位于左叶,大小约为8.3MM×7.4MM;肝内外胆管无扩张;脾脏不大,密度均,未见明显占位;左肾上极见直径约为6.7MM的囊性灶;胆囊、胰、右肾、双侧肾上腺未见明显占位;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET/CT图像示肛管糖代谢增高,最大SUV值为5.2,考虑为生理性摄取或炎性病变可能;膀胱充盈差,内见显像剂生理性积聚;余肠道呈生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强;膀胱充盈,壁光滑无增厚;双侧精囊腺形态可;双侧膀胱精囊三角对称;前列腺无明显增大,密度均;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET图像未见糖代谢异常增高。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗示全身多处骨骼见点状致密影,考虑为“骨岛”可能;脊柱多个椎体及椎小关节骨质增生,提示为退行性改变。考虑为左肺上叶尖后段周围型MT可能;左侧颞叶糖代谢减低的稍低密度灶,MT待排,请结合增强MRI检查;右肺上叶尖段陈旧灶可能;两肺上、下叶小结节,请结合临床随访;两肺少许慢性炎症及轻度气肿;右侧锁骨区、纵隔、右侧肺门淋巴结炎性病变可能;甲状腺双叶良性病变可能,请结合超声检查;肝脏囊肿;左肾囊肿。</t>
   </si>
   <si>
     <t>8.7MM×6.9MM</t>
   </si>
   <si>
-    <t>左肺下叶基底干支气管截断，局部见不规则软组织肿块，大小约为47MM×46MM(IMA36)，肿块边缘见多发毛刺影，部分边缘与左侧叶间胸膜分界不清，其远端肺组织不张，呈不规则片絮影。右肺未见异常密度区及结节灶。\U007F左侧胸膜结节样增厚，左侧胸腔内见少量积液。\U007F纵隔内4、5、7、10组见多发淋巴结，较大淋巴结位于气管隆突下，大小约为39MM×39MM(IMA31)。\U007F双侧锁骨上区未见肿大淋巴结。\U007FT9椎体见低密度区，局部见不规则软组织密度影，病变区与邻近右侧胸膜分界不清。\U007F\U007F左肺下叶基底干占位伴肺组织不张，考虑恶性，肺癌可能性大。\U007F左侧胸膜增厚及左侧胸腔内积液，考虑右侧胸膜转移。\U007F纵隔内多发淋巴结，考虑转移。\U007FT9椎体低密度灶，骨转移?建议骨扫描检查。</t>
+    <t>左肺下叶基底干支气管截断,局部见不规则软组织肿块,大小约为47MM×46MM(IMA36),肿块边缘见多发毛刺影,部分边缘与左侧叶间胸膜分界不清,其远端肺组织不张,呈不规则片絮影。右肺未见异常密度区及结节灶。\U007F左侧胸膜结节样增厚,左侧胸腔内见少量积液。\U007F纵隔内4、5、7、10组见多发淋巴结,较大淋巴结位于气管隆突下,大小约为39MM×39MM(IMA31)。\U007F双侧锁骨上区未见肿大淋巴结。\U007FT9椎体见低密度区,局部见不规则软组织密度影,病变区与邻近右侧胸膜分界不清。\U007F\U007F左肺下叶基底干占位伴肺组织不张,考虑恶性,肺癌可能性大。\U007F左侧胸膜增厚及左侧胸腔内积液,考虑右侧胸膜转移。\U007F纵隔内多发淋巴结,考虑转移。\U007FT9椎体低密度灶,骨转移?建议骨扫描检查。</t>
   </si>
   <si>
     <t>左肺下叶基底干</t>
@@ -1928,13 +1928,13 @@
     <t>右侧胸膜,纵隔内多发淋巴结,T9椎体</t>
   </si>
   <si>
-    <t>肺癌脑转移、纵隔淋巴结转移放化疗后6个月复查，对照2014-3-25片：右上肺叶局部缺失，支气管残端见金属灶，未见肿物。右残肺膨胀好，右肺下叶后基底段近胸膜处见一类结节，边界清，短径约3MM。右肺下叶见不规则斑片磨玻璃稍高密度灶。右上肺支气管中断，余气管及支气管分支通畅。右侧上气管旁见肿大淋巴结，大小约15MM×11MM，增强扫描较明显强化，右侧血管前及隆突下见小淋巴结，大小约6MM×6MM及9MM×8MM。双侧胸腔未见积液。右侧胸膜稍增厚、粘连，左侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝S8见一小低密度影，直径约5MM，边界清，增强未见强化。肝S6见一小结节低密度灶，边界清短径约3MM，强化不明显，较前未见明显变化。胆囊大小正常，其内未见结石影。肝内胆管、胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度不均匀，见一结节低密度灶，边界欠清，大小约12MM×12MM，轻度强化，较前稍缩小。胰腺大小、形态正常，密度均匀。双肾所见正常。双肾上腺所见正常。腹膜后未见明显肿大淋巴结。双颈结构清晰，各血管充盈良好，甲状腺双叶及峡部形态正常，密度均匀，未见占位性病变。喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。双侧颌下腺、腮腺大小形态正常，密度均匀。颈部肌群排列对称，密度均匀，肌间隙未见明显异常，左颈IV、V区、左侧锁骨上窝见多个淋巴结，边界清，最大短径约11MM。右侧第5后肋局部骨质不连续，考虑术后改变，T12左侧椎板、L2椎体见不规则高密度灶，余所见骨质未见明确破坏征象。肺癌脑转移、纵隔淋巴结转移放化疗后6个月复查，对照2014-3-25片：右肺下叶后基底段类结节，增殖灶可能。右肺下叶斑片磨玻璃影，炎症可能。右侧上气管旁淋巴结肿大，较前无大变化。右侧血管前及隆突下小淋巴结，大致同前。左颈IV、V区、左侧锁骨上窝多发淋巴结。肝S8囊肿。肝S6小结节低密度灶，同前。脾脏低密度灶，较前稍缩小，可疑转移，建议随诊。T12左侧椎板、L2椎体病灶，考虑骨转移。</t>
+    <t>肺癌脑转移、纵隔淋巴结转移放化疗后6个月复查,对照2014-3-25片:右上肺叶局部缺失,支气管残端见金属灶,未见肿物。右残肺膨胀好,右肺下叶后基底段近胸膜处见一类结节,边界清,短径约3MM。右肺下叶见不规则斑片磨玻璃稍高密度灶。右上肺支气管中断,余气管及支气管分支通畅。右侧上气管旁见肿大淋巴结,大小约15MM×11MM,增强扫描较明显强化,右侧血管前及隆突下见小淋巴结,大小约6MM×6MM及9MM×8MM。双侧胸腔未见积液。右侧胸膜稍增厚、粘连,左侧胸膜无增厚、粘连。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度不均匀。肝S8见一小低密度影,直径约5MM,边界清,增强未见强化。肝S6见一小结节低密度灶,边界清短径约3MM,强化不明显,较前未见明显变化。胆囊大小正常,其内未见结石影。肝内胆管、胆总管未见扩张,其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常,密度不均匀,见一结节低密度灶,边界欠清,大小约12MM×12MM,轻度强化,较前稍缩小。胰腺大小、形态正常,密度均匀。双肾所见正常。双肾上腺所见正常。腹膜后未见明显肿大淋巴结。双颈结构清晰,各血管充盈良好,甲状腺双叶及峡部形态正常,密度均匀,未见占位性病变。喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。双侧颌下腺、腮腺大小形态正常,密度均匀。颈部肌群排列对称,密度均匀,肌间隙未见明显异常,左颈IV、V区、左侧锁骨上窝见多个淋巴结,边界清,最大短径约11MM。右侧第5后肋局部骨质不连续,考虑术后改变,T12左侧椎板、L2椎体见不规则高密度灶,余所见骨质未见明确破坏征象。肺癌脑转移、纵隔淋巴结转移放化疗后6个月复查,对照2014-3-25片:右肺下叶后基底段类结节,增殖灶可能。右肺下叶斑片磨玻璃影,炎症可能。右侧上气管旁淋巴结肿大,较前无大变化。右侧血管前及隆突下小淋巴结,大致同前。左颈IV、V区、左侧锁骨上窝多发淋巴结。肝S8囊肿。肝S6小结节低密度灶,同前。脾脏低密度灶,较前稍缩小,可疑转移,建议随诊。T12左侧椎板、L2椎体病灶,考虑骨转移。</t>
   </si>
   <si>
     <t>脑,纵隔淋巴结,T12左侧椎板,L2椎体,脾脏</t>
   </si>
   <si>
-    <t>1.左肺下叶中心型肺癌，侵及左下肺静脉，伴局部肺不张，左肺门、纵隔淋巴结转移2.左侧胸腔少量积液3.肝左叶囊实性占位，伴肝内胆管轻度扩张，考虑转移可能性大，建议活检或治疗后复查4.胰腺占位，考虑转移伴胰管轻度扩张左肺下叶支气管截断，局部见一软组织密度肿块，其远端见不张实变的肺组织影，病变大小不易准确测量，估计长径约5.5CM左右，病变与心包关系密切；增强后病变呈不均匀强化，并见病变包埋左下肺静脉。左肺上叶透光区略示增高。余双肺清晰。左肺门10区及11区、纵隔内8R、8L、7区见增大淋巴结，并相互融合，4R、4L区见稍大淋巴结，大者短径约4.0CM，心包及右肺动脉轻度受压；增强后不均匀强化。左侧胸腔内见少许液性密度影。肝左叶见一大小约10.2CM×7.7CM囊性密度灶，厚壁，见壁结节向腔内突出，增强后壁结节可见强化。病变周期肝实质动脉期见片状一过性显著强化区，考虑为灌注异常。病变远端见少许轻度扩张的胆管影。门静脉左支受压变形。胆囊未见异常。胰腺颈部见一长径约0.9CM低密度灶，边缘略示模糊，其远端胆管轻度扩张。脾、双肾及肾上腺未见异常。腹腔及腹膜后未见显著增大淋巴结。</t>
+    <t>1.左肺下叶中心型肺癌,侵及左下肺静脉,伴局部肺不张,左肺门、纵隔淋巴结转移2.左侧胸腔少量积液3.肝左叶囊实性占位,伴肝内胆管轻度扩张,考虑转移可能性大,建议活检或治疗后复查4.胰腺占位,考虑转移伴胰管轻度扩张左肺下叶支气管截断,局部见一软组织密度肿块,其远端见不张实变的肺组织影,病变大小不易准确测量,估计长径约5.5CM左右,病变与心包关系密切;增强后病变呈不均匀强化,并见病变包埋左下肺静脉。左肺上叶透光区略示增高。余双肺清晰。左肺门10区及11区、纵隔内8R、8L、7区见增大淋巴结,并相互融合,4R、4L区见稍大淋巴结,大者短径约4.0CM,心包及右肺动脉轻度受压;增强后不均匀强化。左侧胸腔内见少许液性密度影。肝左叶见一大小约10.2CM×7.7CM囊性密度灶,厚壁,见壁结节向腔内突出,增强后壁结节可见强化。病变周期肝实质动脉期见片状一过性显著强化区,考虑为灌注异常。病变远端见少许轻度扩张的胆管影。门静脉左支受压变形。胆囊未见异常。胰腺颈部见一长径约0.9CM低密度灶,边缘略示模糊,其远端胆管轻度扩张。脾、双肾及肾上腺未见异常。腹腔及腹膜后未见显著增大淋巴结。</t>
   </si>
   <si>
     <t>5.5CM</t>
@@ -1943,13 +1943,13 @@
     <t>左肺门,纵隔淋巴结,肝左叶,胰腺</t>
   </si>
   <si>
-    <t>右乳癌术后多线治疗后，肝转移术后，对比2016-10-20、10-15、04-07片：右乳癌术后改变，局部未见明显复发。双下肺小结节，考虑转移可能。双下肺增殖灶，较前未见明显变化。甲状腺右叶及峡部结节，较前未见明显变化，考虑结节性甲状腺肿可能性大。肝内多发类圆形结节，考虑转移，较前增大增多。肝门区、门腔间隙及下腔静脉旁淋巴结，较前增大。双肾多发小囊肿。L1椎体、L2椎体、骶尾椎体内、双侧髂骨、双侧坐骨后支、左侧股骨见多发类圆形致密影，考虑转移可能。盆腔CT未见明显异常。头颅CT扫描未见明显异常。右乳癌术后多线治疗后，肝转移术后，对比2016-10-20、10-15、04-07片：右乳术后缺失，局部皮肤未见明显增厚；左乳大小、形态未见明显异常。双侧腋窝及内乳区未见明显肿大淋巴结。右肺下叶外基底段(SE14，IM166)、左肺下叶后基底段(SE14，IM177)各见一结节，大者直径约6MM，边界清，增强可见轻度强化。双肺下叶见条索影及类结节灶，边界较清，较前未见明显变化。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。右侧斜裂可见结节样稍厚，左侧胸膜无增厚、粘连。所示甲状腺右叶及峡部可见数个低密度结节，最大约25MM×16MM，边界欠清，增强可见明显不均匀强化，较前未见明显变化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝S1见一不规则低密度灶，大小约17MM×12MM，边界稍模糊，密度欠均匀，增强扫描不均匀强化；残肝内见多发小类圆形稍低密度灶，大者直径15MM，边界模糊，增强扫描轻度强化，较前增大增多。肝内胆管正常，胆囊大小正常，胆总管未见扩张。门静脉所见正常。肝门区、门腔间隙及下腔静脉旁见数枚淋巴结，相互融合，增强扫描明显强化，较大者24MM×17MM，较前增大。脾大小、形态正常，密度均匀。胰腺体积缩小，实质萎缩，密度均匀。双肾见多个小类圆形低密度影，边界清，大小约2~3MM，未见强化。双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。子宫大小、形态未见明显异常，子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。大脑各叶、小脑及脑干形态未见异常，脑实质内未见明确异常密度影及异常强化灶，脑沟、裂、池不宽，脑室对称不大，中线结构无移位，幕下结构未见异常，颅骨未见骨质异常。L1椎体、L2椎体、骶尾椎体内、双侧髂骨、双侧坐骨后支、左侧股骨见多发类圆形致密影，大者直径约10MM，边界较清。余骨质未见明显异常。</t>
+    <t>右乳癌术后多线治疗后,肝转移术后,对比2016-10-20、10-15、04-07片:右乳癌术后改变,局部未见明显复发。双下肺小结节,考虑转移可能。双下肺增殖灶,较前未见明显变化。甲状腺右叶及峡部结节,较前未见明显变化,考虑结节性甲状腺肿可能性大。肝内多发类圆形结节,考虑转移,较前增大增多。肝门区、门腔间隙及下腔静脉旁淋巴结,较前增大。双肾多发小囊肿。L1椎体、L2椎体、骶尾椎体内、双侧髂骨、双侧坐骨后支、左侧股骨见多发类圆形致密影,考虑转移可能。盆腔CT未见明显异常。头颅CT扫描未见明显异常。右乳癌术后多线治疗后,肝转移术后,对比2016-10-20、10-15、04-07片:右乳术后缺失,局部皮肤未见明显增厚;左乳大小、形态未见明显异常。双侧腋窝及内乳区未见明显肿大淋巴结。右肺下叶外基底段(SE14,IM166)、左肺下叶后基底段(SE14,IM177)各见一结节,大者直径约6MM,边界清,增强可见轻度强化。双肺下叶见条索影及类结节灶,边界较清,较前未见明显变化。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。右侧斜裂可见结节样稍厚,左侧胸膜无增厚、粘连。所示甲状腺右叶及峡部可见数个低密度结节,最大约25MM×16MM,边界欠清,增强可见明显不均匀强化,较前未见明显变化。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度不均匀。肝S1见一不规则低密度灶,大小约17MM×12MM,边界稍模糊,密度欠均匀,增强扫描不均匀强化;残肝内见多发小类圆形稍低密度灶,大者直径15MM,边界模糊,增强扫描轻度强化,较前增大增多。肝内胆管正常,胆囊大小正常,胆总管未见扩张。门静脉所见正常。肝门区、门腔间隙及下腔静脉旁见数枚淋巴结,相互融合,增强扫描明显强化,较大者24MM×17MM,较前增大。脾大小、形态正常,密度均匀。胰腺体积缩小,实质萎缩,密度均匀。双肾见多个小类圆形低密度影,边界清,大小约2~3MM,未见强化。双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。膀胱充盈良好,境界清楚。子宫大小、形态未见明显异常,子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。大脑各叶、小脑及脑干形态未见异常,脑实质内未见明确异常密度影及异常强化灶,脑沟、裂、池不宽,脑室对称不大,中线结构无移位,幕下结构未见异常,颅骨未见骨质异常。L1椎体、L2椎体、骶尾椎体内、双侧髂骨、双侧坐骨后支、左侧股骨见多发类圆形致密影,大者直径约10MM,边界较清。余骨质未见明显异常。</t>
   </si>
   <si>
     <t>肝,双下肺,L1椎体,L2椎体,骶尾椎体,双侧髂骨,双侧坐骨后支,左侧股骨</t>
   </si>
   <si>
-    <t>右侧乳腺10点钟方向，距离乳头2CM可见一个低回声病灶，大小约为28MM×17MM，不规则形，非平行生长，边缘不完整，可见细分叶、成角、毛刺等改变，内部回声不均匀，可见点状强回声，后方回声衰减。病灶处乳腺浅筋膜浅、深层中断。COOPER'S韧带夹角增大。CDFI：上述病灶内点状血流信号，可探及动脉频谱：VP：37CM/S，RI：0.73。左侧乳腺各层组织结构清晰，腺组织较均质，呈细蜂窝状较强回声，其内未见明确肿物回声。乳腺导管未见扩张。CDFI：左侧乳腺腺体内未见明确异常血流信号。右侧腋窝及右侧锁骨上区可见多个淋巴结回声，较大约29MM×15MM(腋下组)，10MM×7MM(腋中组)、5MM×4MM(腋上组)、13MM×10MM(锁骨上区)，椭圆形，边界清，皮髓质分界不清，淋巴门结构未探及。CDFI：上述淋巴结部分可见门型血流信号。左侧腋窝、左侧颈部及左侧锁骨上区未见明确异常淋巴结回声。右侧乳腺10点钟实性病灶，符合乳腺CA(BI-RADS分类：5)。右侧腋窝右侧锁骨上区多发淋巴结，考虑转移性淋巴结。左侧乳腺未见明确占位性病变(BI-RADS分类：1)。左侧腋窝左侧颈部左侧锁骨上区未见明确异常淋巴结声像。</t>
+    <t>右侧乳腺10点钟方向,距离乳头2CM可见一个低回声病灶,大小约为28MM×17MM,不规则形,非平行生长,边缘不完整,可见细分叶、成角、毛刺等改变,内部回声不均匀,可见点状强回声,后方回声衰减。病灶处乳腺浅筋膜浅、深层中断。COOPER'S韧带夹角增大。CDFI:上述病灶内点状血流信号,可探及动脉频谱:VP:37CM/S,RI:0.73。左侧乳腺各层组织结构清晰,腺组织较均质,呈细蜂窝状较强回声,其内未见明确肿物回声。乳腺导管未见扩张。CDFI:左侧乳腺腺体内未见明确异常血流信号。右侧腋窝及右侧锁骨上区可见多个淋巴结回声,较大约29MM×15MM(腋下组),10MM×7MM(腋中组)、5MM×4MM(腋上组)、13MM×10MM(锁骨上区),椭圆形,边界清,皮髓质分界不清,淋巴门结构未探及。CDFI:上述淋巴结部分可见门型血流信号。左侧腋窝、左侧颈部及左侧锁骨上区未见明确异常淋巴结回声。右侧乳腺10点钟实性病灶,符合乳腺CA(BI-RADS分类:5)。右侧腋窝右侧锁骨上区多发淋巴结,考虑转移性淋巴结。左侧乳腺未见明确占位性病变(BI-RADS分类:1)。左侧腋窝左侧颈部左侧锁骨上区未见明确异常淋巴结声像。</t>
   </si>
   <si>
     <t>28MM×17MM</t>
@@ -1958,19 +1958,19 @@
     <t>右侧腋窝右侧锁骨上区多发淋巴结</t>
   </si>
   <si>
-    <t>1.结合临床，左肺上叶占位，考虑左肺癌；纵隔淋巴结转移2.双肺纤维灶3.双肺气肿4.右肺下叶小结节灶，建议观察5.左侧胸膜增厚6.肝囊肿7.右侧肾上腺低密度灶，考虑腺瘤左肺上叶胸膜下见一不规则软组织密度肿块影，与胸膜相贴，截面积约6.8CM×3.6CM；增强呈较显著不均匀强化。纵隔内主动脉弓旁、左肺动脉旁见多发肿大淋巴结，大者短径约2.3CM。双肺野内见少许条索状影，其内可见囊泡状过度透光区。右肺下叶见一小结节灶，直径不足0.5CM。左侧胸膜局部增厚。左锁上见小淋巴结，短径不足0.5CM。肝脏体积略缩小，其内可见多发囊性密度灶，边界清，未见强化，大者直径约3.0CM。右侧肾上腺见一低密度灶，密度较低，直径约2.4CM。胆囊壁不厚。胰腺、脾、左侧肾上腺及双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。</t>
+    <t>1.结合临床,左肺上叶占位,考虑左肺癌;纵隔淋巴结转移2.双肺纤维灶3.双肺气肿4.右肺下叶小结节灶,建议观察5.左侧胸膜增厚6.肝囊肿7.右侧肾上腺低密度灶,考虑腺瘤左肺上叶胸膜下见一不规则软组织密度肿块影,与胸膜相贴,截面积约6.8CM×3.6CM;增强呈较显著不均匀强化。纵隔内主动脉弓旁、左肺动脉旁见多发肿大淋巴结,大者短径约2.3CM。双肺野内见少许条索状影,其内可见囊泡状过度透光区。右肺下叶见一小结节灶,直径不足0.5CM。左侧胸膜局部增厚。左锁上见小淋巴结,短径不足0.5CM。肝脏体积略缩小,其内可见多发囊性密度灶,边界清,未见强化,大者直径约3.0CM。右侧肾上腺见一低密度灶,密度较低,直径约2.4CM。胆囊壁不厚。胰腺、脾、左侧肾上腺及双肾未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。</t>
   </si>
   <si>
     <t>6.8CM×3.6CM</t>
   </si>
   <si>
-    <t>左上肺癌术后化疗后，与2013-3-14日片对比：肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾所见正常。双肾上腺所见正常。腹主动脉旁见小淋巴结，短径约8MM，膈脚后、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。精囊大小、形态正常，密度均匀，膀胱精囊角存在。前列腺大小、形态正常，密度均匀。双侧髂血管旁、腹股沟未见肿大淋巴结。盆腔见少量液体密度影。扫描范围内双肺多发结节、肿块影，大者直径约30MM，边界欠清，增强扫描较明显强化。双侧胸腔见少量积液，左侧胸膜见增厚。所见骨质未见明确破坏征象。左上肺癌术后化疗后，与2013-3-14日片对比：腹主动脉旁小淋巴结。盆腔少量积液。双下肺多发结节肿块影，考虑转移瘤。双侧胸腔积液，左侧胸膜增厚。</t>
+    <t>左上肺癌术后化疗后,与2013-3-14日片对比:肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度均匀。肝内胆管正常,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。双肾所见正常。双肾上腺所见正常。腹主动脉旁见小淋巴结,短径约8MM,膈脚后、腹主动脉旁未见肿大淋巴结。膀胱充盈良好,境界清楚。精囊大小、形态正常,密度均匀,膀胱精囊角存在。前列腺大小、形态正常,密度均匀。双侧髂血管旁、腹股沟未见肿大淋巴结。盆腔见少量液体密度影。扫描范围内双肺多发结节、肿块影,大者直径约30MM,边界欠清,增强扫描较明显强化。双侧胸腔见少量积液,左侧胸膜见增厚。所见骨质未见明确破坏征象。左上肺癌术后化疗后,与2013-3-14日片对比:腹主动脉旁小淋巴结。盆腔少量积液。双下肺多发结节肿块影,考虑转移瘤。双侧胸腔积液,左侧胸膜增厚。</t>
   </si>
   <si>
     <t>双下肺</t>
   </si>
   <si>
-    <t>右主支气管后壁见结节样病变，密度均匀，边界较清楚，范围约11MM×20MM，右主支气管变窄。病变向外延伸致右肺中间支气管、下叶支气管壁增厚，管腔变窄。右肺中叶、下叶见少量片状稍高密度病变，密度不均匀，边界模糊。右肺上叶后段见片状无纹理低密度区，边界清楚，壁薄。左下气管旁、气管隆突下见多发肿大淋巴结，最大者短径约14MM。左肺上叶舌段家少量斑片状高密度病变，边界较清楚。双侧胸腔未见积液。胸膜未见增厚。扫描范围内胸椎、胸壁骨及软组织未见异常。肝脏轮廓未见明显异常，各叶比例在正常范围以内，其外形轮廓光整。肝S、6分别见一个小低密度灶，密度均匀，增强扫描未见明显强化，边界清晰、锐利，较大者直径约6MM。肝内胆管未见明显异常，胆囊未见明显扩张，胆总管未扩张。肝门区未见明显异常。门静脉所见未见明显异常。脾大小未见明显异常，密度均匀。胰腺大小、形态未见明显异常，密度均匀。双肾见数个类圆形低密度病变，密度均匀，边界清晰，增强扫描未见明显强化，最大者直径约10MM。双肾上腺未见明显异常。腹腔干周围、腹主动脉旁、肠系膜根部未见肿大淋巴结。右侧主支气管、中间支气管、中叶及下叶支气管壁增厚，符合中央型肺癌并右肺中、下叶阻塞性肺炎纵膈肿大淋巴结，考虑转移瘤右肺上叶后段肺大泡左肺上叶舌段片状病变，考虑增值性病变肝多发低密度病变，考虑肝囊肿双肾多发囊肿。</t>
+    <t>右主支气管后壁见结节样病变,密度均匀,边界较清楚,范围约11MM×20MM,右主支气管变窄。病变向外延伸致右肺中间支气管、下叶支气管壁增厚,管腔变窄。右肺中叶、下叶见少量片状稍高密度病变,密度不均匀,边界模糊。右肺上叶后段见片状无纹理低密度区,边界清楚,壁薄。左下气管旁、气管隆突下见多发肿大淋巴结,最大者短径约14MM。左肺上叶舌段家少量斑片状高密度病变,边界较清楚。双侧胸腔未见积液。胸膜未见增厚。扫描范围内胸椎、胸壁骨及软组织未见异常。肝脏轮廓未见明显异常,各叶比例在正常范围以内,其外形轮廓光整。肝S、6分别见一个小低密度灶,密度均匀,增强扫描未见明显强化,边界清晰、锐利,较大者直径约6MM。肝内胆管未见明显异常,胆囊未见明显扩张,胆总管未扩张。肝门区未见明显异常。门静脉所见未见明显异常。脾大小未见明显异常,密度均匀。胰腺大小、形态未见明显异常,密度均匀。双肾见数个类圆形低密度病变,密度均匀,边界清晰,增强扫描未见明显强化,最大者直径约10MM。双肾上腺未见明显异常。腹腔干周围、腹主动脉旁、肠系膜根部未见肿大淋巴结。右侧主支气管、中间支气管、中叶及下叶支气管壁增厚,符合中央型肺癌并右肺中、下叶阻塞性肺炎纵膈肿大淋巴结,考虑转移瘤右肺上叶后段肺大泡左肺上叶舌段片状病变,考虑增值性病变肝多发低密度病变,考虑肝囊肿双肾多发囊肿。</t>
   </si>
   <si>
     <t>11MM×20MM</t>
@@ -1979,22 +1979,22 @@
     <t>纵膈肿大淋巴结</t>
   </si>
   <si>
-    <t>右肺上叶前段见一团块状软组织肿物，大小约43MM×38MM，密度尚均匀，未见钙化、坏死，轮廓不光整，边缘可见分叶，部分边界欠清晰，增强扫描较明显不均匀强化，病灶远端见片状影，增强扫描明显强化。右肺上叶(SE7，IM90)见一结节，直径约3MM，边界清。右肺、左肺上叶舌段见数个类结节灶，大者直径约4MM，边界清。右肺中叶内侧段见条片影，边界清，增强扫描可见明显强化。左肺下叶见少许斑片影，边界不清。右肺上叶前段支气管狭窄，气管及左肺支气管分支通畅。右上下气管旁及右侧肺门见数个肿大淋巴结，大者短径约17MM，密度尚均匀，增强扫描可见中度或明显强化。右侧锁骨上窝见数个小淋巴结，大者短径约5MM，边界清，密度均匀。双侧胸腔未见积液。双侧胸膜未见增厚。CTA示：右肺上叶肺动脉走形于病灶，局部管壁稍僵硬，未见明显充盈缺损。肝脏形态未见异常，轮廓光整，各叶比例在正常范围以内，增强扫描动脉期肝S6见结节状强化影，其余各期呈等密度。肝内胆管未见明显异常。胆囊不大、壁不厚，其内未见结石。胆总管未见扩张，其内未见结石。肝门区结构清晰。门静脉未见明显异常。脾脏大小、形态未见明显异常，密度均匀。胰腺大小、形态未见明显异常，密度均匀。双肾及双侧肾上腺大小、形态未见明显异常，密度均匀。膈脚后、肝门区、腹主动脉旁、腹腔干周围未见明显肿大淋巴结。扫描层面内左侧第2前肋骨质连续性中断，周围软组织稍增多，所见其余骨质未见明显骨质破坏。右肺上叶前段病变，考虑右上肺癌并阻塞性肺不张。右肺上叶结节，性质待定，建议随诊。右肺、左肺上叶舌段类结节灶，考虑增殖灶可能性大。右肺中叶内侧段条片影，考虑节段性肺不张。左肺下叶斑片影，考虑炎症。右上下气管旁右侧肺门淋巴结肿大，考虑转移。右侧锁骨上窝小淋巴结，建议随诊。增强扫描动脉期肝S6结节状强化影，考虑异常灌注可能性大。左侧第2前肋骨折，周围软组织稍增多，请结合临床，以除外病理性骨折。</t>
+    <t>右肺上叶前段见一团块状软组织肿物,大小约43MM×38MM,密度尚均匀,未见钙化、坏死,轮廓不光整,边缘可见分叶,部分边界欠清晰,增强扫描较明显不均匀强化,病灶远端见片状影,增强扫描明显强化。右肺上叶(SE7,IM90)见一结节,直径约3MM,边界清。右肺、左肺上叶舌段见数个类结节灶,大者直径约4MM,边界清。右肺中叶内侧段见条片影,边界清,增强扫描可见明显强化。左肺下叶见少许斑片影,边界不清。右肺上叶前段支气管狭窄,气管及左肺支气管分支通畅。右上下气管旁及右侧肺门见数个肿大淋巴结,大者短径约17MM,密度尚均匀,增强扫描可见中度或明显强化。右侧锁骨上窝见数个小淋巴结,大者短径约5MM,边界清,密度均匀。双侧胸腔未见积液。双侧胸膜未见增厚。CTA示:右肺上叶肺动脉走形于病灶,局部管壁稍僵硬,未见明显充盈缺损。肝脏形态未见异常,轮廓光整,各叶比例在正常范围以内,增强扫描动脉期肝S6见结节状强化影,其余各期呈等密度。肝内胆管未见明显异常。胆囊不大、壁不厚,其内未见结石。胆总管未见扩张,其内未见结石。肝门区结构清晰。门静脉未见明显异常。脾脏大小、形态未见明显异常,密度均匀。胰腺大小、形态未见明显异常,密度均匀。双肾及双侧肾上腺大小、形态未见明显异常,密度均匀。膈脚后、肝门区、腹主动脉旁、腹腔干周围未见明显肿大淋巴结。扫描层面内左侧第2前肋骨质连续性中断,周围软组织稍增多,所见其余骨质未见明显骨质破坏。右肺上叶前段病变,考虑右上肺癌并阻塞性肺不张。右肺上叶结节,性质待定,建议随诊。右肺、左肺上叶舌段类结节灶,考虑增殖灶可能性大。右肺中叶内侧段条片影,考虑节段性肺不张。左肺下叶斑片影,考虑炎症。右上下气管旁右侧肺门淋巴结肿大,考虑转移。右侧锁骨上窝小淋巴结,建议随诊。增强扫描动脉期肝S6结节状强化影,考虑异常灌注可能性大。左侧第2前肋骨折,周围软组织稍增多,请结合临床,以除外病理性骨折。</t>
   </si>
   <si>
     <t>右侧肺门淋巴结</t>
   </si>
   <si>
-    <t>肺癌化疗后复查，与2014-08-01日片对比：右上肺结节，较前未见明显变化；纵隔及右肺门小淋巴结，大致同前；肝内新发病灶，考虑转移瘤。肝内多发囊性灶，考虑囊肿，较前未见明显变化。胸腰椎多发结节致密灶，较前未见明显变化。肺癌化疗后复查，与2014-08-01日片对比：右肺上叶后段近胸膜下见一不规则软组织密度结节，大小约12MM×19MM，境界欠清，边缘分叶，可见长短毛刺样突起，与邻近胸膜及斜裂粘连牵拉，增强扫描可见不均匀轻度强化，较前未见明显变化。左肺下叶见少许条索灶，余肺纹理清晰，未见明显实质性病变。气管及支气管分支通畅。右下气管旁、主肺动脉窗及右肺门见数个小淋巴结，大者短径约6MM，界清，增强扫描轻度强化，较前变化不大。左肺门未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚、粘连。原心包腔底部积液已消失。肝脏形态、比例正常，轮廓光整。密度欠均匀，肝内新出现多发散在分布的低密度影，最大者位于S7，大小约17MM×19MM，边界欠清，增强后可见不均匀强化。肝S4、5、6、8内见散在多个囊状低密度灶，界清，大者直径约7MM，增强扫描无明显强化。较前未见明显变化。肝内外胆管无扩张，未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾所见正常。双肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。L1~3、T7、8、11椎体内见多个大小不等结节状稍致密灶，境界清楚，较前未见明显变化。</t>
-  </si>
-  <si>
-    <t>双肺野内见多发结节及软组织肿块影，部分其内可见小空泡影，大者直径约1.9CM。另于右肺野内见多发斑片状及条索状密度增高影，边缘模糊。另右肺斜裂胸膜增厚。双侧叶间胸膜示增厚，左侧叶间胸膜见小类结节灶。左乳外上象限见一不规则软组织结节灶，长径约0.8CM，边缘分叶可见少许毛刺，增强后呈轻度强化。纵隔内右上气管旁、气管前腔静脉后、主肺动脉窗区、隆突下、双肺门见多发小或稍大淋巴结，大者短径约1.0CM，部分内可见钙化。1.结合临床，右肺癌双肺转移治疗后，较前(2016-7-26)进展2.结合临床，左乳癌治疗后，较前变化不著3.纵隔及肺门淋巴结增大，较前增大4.右肺局限性炎症及纤维炎性变，变化不著；双侧叶间胸膜增厚，均变化不著</t>
+    <t>肺癌化疗后复查,与2014-08-01日片对比:右上肺结节,较前未见明显变化;纵隔及右肺门小淋巴结,大致同前;肝内新发病灶,考虑转移瘤。肝内多发囊性灶,考虑囊肿,较前未见明显变化。胸腰椎多发结节致密灶,较前未见明显变化。肺癌化疗后复查,与2014-08-01日片对比:右肺上叶后段近胸膜下见一不规则软组织密度结节,大小约12MM×19MM,境界欠清,边缘分叶,可见长短毛刺样突起,与邻近胸膜及斜裂粘连牵拉,增强扫描可见不均匀轻度强化,较前未见明显变化。左肺下叶见少许条索灶,余肺纹理清晰,未见明显实质性病变。气管及支气管分支通畅。右下气管旁、主肺动脉窗及右肺门见数个小淋巴结,大者短径约6MM,界清,增强扫描轻度强化,较前变化不大。左肺门未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚、粘连。原心包腔底部积液已消失。肝脏形态、比例正常,轮廓光整。密度欠均匀,肝内新出现多发散在分布的低密度影,最大者位于S7,大小约17MM×19MM,边界欠清,增强后可见不均匀强化。肝S4、5、6、8内见散在多个囊状低密度灶,界清,大者直径约7MM,增强扫描无明显强化。较前未见明显变化。肝内外胆管无扩张,未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张。肝门区正常。门静脉所见正常。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。双肾所见正常。双肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。L1~3、T7、8、11椎体内见多个大小不等结节状稍致密灶,境界清楚,较前未见明显变化。</t>
+  </si>
+  <si>
+    <t>双肺野内见多发结节及软组织肿块影,部分其内可见小空泡影,大者直径约1.9CM。另于右肺野内见多发斑片状及条索状密度增高影,边缘模糊。另右肺斜裂胸膜增厚。双侧叶间胸膜示增厚,左侧叶间胸膜见小类结节灶。左乳外上象限见一不规则软组织结节灶,长径约0.8CM,边缘分叶可见少许毛刺,增强后呈轻度强化。纵隔内右上气管旁、气管前腔静脉后、主肺动脉窗区、隆突下、双肺门见多发小或稍大淋巴结,大者短径约1.0CM,部分内可见钙化。1.结合临床,右肺癌双肺转移治疗后,较前(2016-7-26)进展2.结合临床,左乳癌治疗后,较前变化不著3.纵隔及肺门淋巴结增大,较前增大4.右肺局限性炎症及纤维炎性变,变化不著;双侧叶间胸膜增厚,均变化不著</t>
   </si>
   <si>
     <t>0.8CM</t>
   </si>
   <si>
-    <t>左乳多发病灶，符合乳腺癌。左侧腋窝肿大淋巴结，考虑转移。双肺散在多发结节影，考虑转移瘤可能性大。纵隔、双侧锁骨上区淋巴结，性质待定，建议随诊复查。肝内多发病灶，考虑转移瘤。左肾囊肿。左侧上颌窦炎。胸骨、T9、T12、L1、L3椎体骨质密度改变，考虑转移瘤。左乳房皮肤明显增厚，最厚处约19MM，左乳内见多发斑片状、结节状软组织密度影，较大病灶位于左乳外象限，大小约30MM×25MM，边缘见多发毛刺牵拉左乳皮肤，增强扫描明显强化。左乳可见多发条片状稍高密度影，增强扫描明显强化。左侧腋窝见数个肿大淋巴结，边界不清，大者大小约11MM×18MM，增强扫描明显强化。右乳未见明确肿物。右侧腋窝、双侧内乳区未见明显肿大淋巴结。双肺见散在多发结节影，边界不清，部分呈磨玻璃密度，大者直径约7MM。右中肺、左上肺舌段见少量条索影，边界清。气管及支气管分支通畅。双下气管旁、隆突下、双肺门见多发淋巴结，边界不清，大者短径约7MM，明显强化。双侧锁骨上区见数个小淋巴结，大者短径约5MM，明显强化。双侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，肝内见散在多发稍低密度肿块或结节，边界欠清，大者大小约30MM×21MM，增强扫描轻度强化。肝内胆管未见扩张，胆囊不大，胆总管未见扩张，其内未见结石影。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。左肾见一类圆形低密度灶，边界清，直径约7MM，未见强化。右肾及双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见明显肿大淋巴结。颈部结构清晰，各血管充盈良好。甲状腺未见明确病变。喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。双侧颌下腺、腮腺未见异常。颈部未见肿大淋巴结。左侧上颌窦粘膜增厚。T12局部骨质密度减低，胸骨、T9、L1、L3椎体见片状骨质密度增高影，边界不清。余所见骨质未见明确破坏征象。。</t>
+    <t>左乳多发病灶,符合乳腺癌。左侧腋窝肿大淋巴结,考虑转移。双肺散在多发结节影,考虑转移瘤可能性大。纵隔、双侧锁骨上区淋巴结,性质待定,建议随诊复查。肝内多发病灶,考虑转移瘤。左肾囊肿。左侧上颌窦炎。胸骨、T9、T12、L1、L3椎体骨质密度改变,考虑转移瘤。左乳房皮肤明显增厚,最厚处约19MM,左乳内见多发斑片状、结节状软组织密度影,较大病灶位于左乳外象限,大小约30MM×25MM,边缘见多发毛刺牵拉左乳皮肤,增强扫描明显强化。左乳可见多发条片状稍高密度影,增强扫描明显强化。左侧腋窝见数个肿大淋巴结,边界不清,大者大小约11MM×18MM,增强扫描明显强化。右乳未见明确肿物。右侧腋窝、双侧内乳区未见明显肿大淋巴结。双肺见散在多发结节影,边界不清,部分呈磨玻璃密度,大者直径约7MM。右中肺、左上肺舌段见少量条索影,边界清。气管及支气管分支通畅。双下气管旁、隆突下、双肺门见多发淋巴结,边界不清,大者短径约7MM,明显强化。双侧锁骨上区见数个小淋巴结,大者短径约5MM,明显强化。双侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏形态、各叶比例在正常范围以内,其外形轮廓光整,肝内见散在多发稍低密度肿块或结节,边界欠清,大者大小约30MM×21MM,增强扫描轻度强化。肝内胆管未见扩张,胆囊不大,胆总管未见扩张,其内未见结石影。门静脉及肝静脉未见异常。脾未见增大,密度均匀。胰腺大小、形态未见异常,密度均匀。左肾见一类圆形低密度灶,边界清,直径约7MM,未见强化。右肾及双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见明显肿大淋巴结。颈部结构清晰,各血管充盈良好。甲状腺未见明确病变。喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。双侧颌下腺、腮腺未见异常。颈部未见肿大淋巴结。左侧上颌窦粘膜增厚。T12局部骨质密度减低,胸骨、T9、L1、L3椎体见片状骨质密度增高影,边界不清。余所见骨质未见明确破坏征象。。</t>
   </si>
   <si>
     <t>30MM×25MM</t>
@@ -2003,7 +2003,7 @@
     <t>左侧腋窝肿大淋巴结,双肺,肝,胸骨,T9,T12,L1,L3椎体</t>
   </si>
   <si>
-    <t>左肺上叶糖代谢异常增高的占位，考虑MT可能，请结合临床；左侧斜裂胸膜增厚；双侧胸腔少量积液；第2胸椎右侧横突局部糖代谢轻度增高，转移待排，建议随访骨扫描；肝脏多发糖代谢减低的占位，考虑良性病变；盆腔少量积液；甲状腺双腺叶糖代谢异常增高的病变，建议超声进一步检查。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET/CT图像示甲状腺双腺叶糖代谢异常增高，最大SUV值约10.1，内可见低密度灶，较大者位于左叶，大小约26.0MM×25.0MM，内并可见钙化影。双侧颈部、锁骨区未见明显糖代谢异常增高灶。胸部PET/CT图像示左肺上叶见大小约27.5MM×18.1MM、边界不清的占位，内密度不均，可见支气管通入，边缘可见毛刺，远端胸膜牵拉，伴糖代谢异常增高，最大SUV值约9.5。左侧斜裂胸膜增厚。肺门、纵隔、胸壁、腋窝未见明显糖代谢异常增高灶。纵隔无明显肿大淋巴结，双肺门影不大；双侧胸膜无增厚；双侧胸腔少量积液；心脏无明显增大；双侧腋窝无明显肿大淋巴结；双侧乳腺无明显占位。腹部PET/CT图像示肝脏增大，内见多发低密度占位，最大者大小约148.0MM×105.0MM，部分内可见更低密度区，呈糖代谢减低。肝脏内另见2枚无糖代谢增高的囊性低密度灶，较大者大小约45.0MM×28.0MM。胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈，壁光滑无增厚；子宫和双附件区未见明显占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔少量积液。骨骼PET/CT图像示第2胸椎右侧横突局部糖代谢轻度增高，最大SUV值约2.8，局部骨皮质可疑毛糙。</t>
+    <t>左肺上叶糖代谢异常增高的占位,考虑MT可能,请结合临床;左侧斜裂胸膜增厚;双侧胸腔少量积液;第2胸椎右侧横突局部糖代谢轻度增高,转移待排,建议随访骨扫描;肝脏多发糖代谢减低的占位,考虑良性病变;盆腔少量积液;甲状腺双腺叶糖代谢异常增高的病变,建议超声进一步检查。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑放射性分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼内肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET/CT图像示甲状腺双腺叶糖代谢异常增高,最大SUV值约10.1,内可见低密度灶,较大者位于左叶,大小约26.0MM×25.0MM,内并可见钙化影。双侧颈部、锁骨区未见明显糖代谢异常增高灶。胸部PET/CT图像示左肺上叶见大小约27.5MM×18.1MM、边界不清的占位,内密度不均,可见支气管通入,边缘可见毛刺,远端胸膜牵拉,伴糖代谢异常增高,最大SUV值约9.5。左侧斜裂胸膜增厚。肺门、纵隔、胸壁、腋窝未见明显糖代谢异常增高灶。纵隔无明显肿大淋巴结,双肺门影不大;双侧胸膜无增厚;双侧胸腔少量积液;心脏无明显增大;双侧腋窝无明显肿大淋巴结;双侧乳腺无明显占位。腹部PET/CT图像示肝脏增大,内见多发低密度占位,最大者大小约148.0MM×105.0MM,部分内可见更低密度区,呈糖代谢减低。肝脏内另见2枚无糖代谢增高的囊性低密度灶,较大者大小约45.0MM×28.0MM。胃壁均匀性轻度糖代谢生理性增强;肠道呈线型生理性糖代谢增强;胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈,壁光滑无增厚;子宫和双附件区未见明显占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔少量积液。骨骼PET/CT图像示第2胸椎右侧横突局部糖代谢轻度增高,最大SUV值约2.8,局部骨皮质可疑毛糙。</t>
   </si>
   <si>
     <t>27.5MM×18.1MM</t>
@@ -2012,7 +2012,7 @@
     <t>第2胸椎右侧横突</t>
   </si>
   <si>
-    <t>1.结合临床，直肠癌治疗后，较前片(2015-1-20)变化不著2.结合临床，左肺癌治疗后，病变显示不清；左肺炎症较前略好转；右肺下叶炎症；肝转移较前变化不著；纵隔淋巴结转移，较前略增大；双侧肾上腺结节灶，考虑转移，较前变化不著3.结合临床，骨转移治疗后，较前变化不著，胸骨局部骨质密度增高，变化不著4.双肾低密度灶，较前变化不著左肺上叶及下叶背段示斑片状密度增高影，其内见充气支气管征。右肺下叶可见斑片状密度增高影。纵隔内见多枚小淋巴结影，部分钙化，双侧胸膜未见增厚，双侧胸腔未见液性密度影。纵隔内2R区示一结节灶，短径约0.8CM。肝右后叶上段实质内示低密度肿块，形态不规则，截面约1.9CM×1.8CM，边缘模糊，增强后其内示不均质点状强化。胆囊充盈可，壁不厚。胰、脾未见异常。双侧肾上腺形态欠自然，右侧肾上腺体部可见结节灶，短径约0.8CM。双肾密度欠均，局部示片状低密度区。腹膜后未见显著增大淋巴结。直肠与乙状结肠交界处及其下方直肠壁示偏心状增厚，相应节段肠腔略狭窄，其外膜面略示毛糙，肠管周围脂肪间隙尚清晰。前列腺及双侧精囊腺未见明确异常。膀胱充盈可，壁不厚。盆腔内及双侧腹股沟未见明显增大淋巴结。骨窗示腰椎L2椎体骨质密度增高。右侧骶骨、左侧髂骨翼局部示结节状密度增高影。右侧第八后肋局部可见成骨性骨质改变。胸骨柄上份局部骨质密度增高。</t>
+    <t>1.结合临床,直肠癌治疗后,较前片(2015-1-20)变化不著2.结合临床,左肺癌治疗后,病变显示不清;左肺炎症较前略好转;右肺下叶炎症;肝转移较前变化不著;纵隔淋巴结转移,较前略增大;双侧肾上腺结节灶,考虑转移,较前变化不著3.结合临床,骨转移治疗后,较前变化不著,胸骨局部骨质密度增高,变化不著4.双肾低密度灶,较前变化不著左肺上叶及下叶背段示斑片状密度增高影,其内见充气支气管征。右肺下叶可见斑片状密度增高影。纵隔内见多枚小淋巴结影,部分钙化,双侧胸膜未见增厚,双侧胸腔未见液性密度影。纵隔内2R区示一结节灶,短径约0.8CM。肝右后叶上段实质内示低密度肿块,形态不规则,截面约1.9CM×1.8CM,边缘模糊,增强后其内示不均质点状强化。胆囊充盈可,壁不厚。胰、脾未见异常。双侧肾上腺形态欠自然,右侧肾上腺体部可见结节灶,短径约0.8CM。双肾密度欠均,局部示片状低密度区。腹膜后未见显著增大淋巴结。直肠与乙状结肠交界处及其下方直肠壁示偏心状增厚,相应节段肠腔略狭窄,其外膜面略示毛糙,肠管周围脂肪间隙尚清晰。前列腺及双侧精囊腺未见明确异常。膀胱充盈可,壁不厚。盆腔内及双侧腹股沟未见明显增大淋巴结。骨窗示腰椎L2椎体骨质密度增高。右侧骶骨、左侧髂骨翼局部示结节状密度增高影。右侧第八后肋局部可见成骨性骨质改变。胸骨柄上份局部骨质密度增高。</t>
   </si>
   <si>
     <t>直肠,左肺</t>
@@ -2021,16 +2021,16 @@
     <t>肝,纵隔淋巴结,双侧肾上腺,骨</t>
   </si>
   <si>
-    <t>左上肺癌术后化疗后复发放化疗后：左下肺前底段及右上肺后段结节代谢较活跃，疑转移；左侧胸膜增厚代谢活跃，考虑转移；双锁骨上、纵隔、右膈角后、腹主动脉旁及右髂总血管旁淋巴结代谢活跃，考虑转移；骶骨右份局部骨质破坏代谢活跃，考虑转移。双侧上颌窦炎症。右上肺尖肺大泡。肝S4及S5囊肿。前列腺钙化灶。空腹6H以上，静脉注射18F-FDG，静息约60MMIN后行全身PET/CT断层显像，影像清晰。左上肺癌术后化疗后复发放化疗后：左上肺缺如；左下肺前底段及右上肺后段结节放射性分布略浓密，SUV约3.5，大者约0.9CM×1.0CM；右上肺尖囊状透亮影；余双侧肺纹理未见明显异常，气管、支气管通畅。左侧胸膜增厚放射浓聚，SUV约7.9，部分层面病灶侵犯左膈脚。双锁骨上、纵隔右侧气管食管沟、右上气管旁及隆突下多个淋巴结放射性分布较浓密，SUV约6.0，最大约1.0CM×1.3CM。纵隔主动脉旁小淋巴结放射性分布未见异常。双肺门及双侧腋窝未见肿大淋巴结及异常放射性分布。双侧脑实质密度、形态正常，放射性分布均匀、对称，诸脑室、脑池、脑沟、脑裂未见异常，中线结构居中。双侧上颌窦低密度影放射性稀疏。蝶窦、额窦及筛窦结构及放射性分布未见明显异常。鼻咽、口咽及喉咽结构及放射性分布未见明显异常。甲状腺形态结构及放射性分布未见明显异常。双上颈小淋巴结放射性分布未见明显异常。肝S4及S5囊状低密度影放射性稀疏，最大约0.5CM×0.6CM，CT值约19HU；余肝脏形态、结构及放射性分布未见明显异常。肝内、外胆管及胆总管未见扩张。胆囊、胃及十二指肠放射性分布未见明显异常。脾脏、胰腺、双肾及肾上腺形态、结构及放射性分布未见明显异常。右膈脚后、腹主动脉旁及右髂总血管旁数个淋巴结放射性分布较浓密，SUV约4.8，最大约1.2CM×1.4CM。盆腔放射性分布均匀。前列腺内数个点状高密度影放射性缺损，CT值约157HU。膀胱及肠管等形态、结构及放射性分布未见明显异常。左侧髂血管旁及双腹股沟未见肿大淋巴结及异常放射性分布。左侧第6后肋术后改变。骶骨右份局部骨质破坏放射性浓聚，SUV约6.6。余所见颅骨、余躯干骨、四肢骨放射性分布未见明显异常。</t>
+    <t>左上肺癌术后化疗后复发放化疗后:左下肺前底段及右上肺后段结节代谢较活跃,疑转移;左侧胸膜增厚代谢活跃,考虑转移;双锁骨上、纵隔、右膈角后、腹主动脉旁及右髂总血管旁淋巴结代谢活跃,考虑转移;骶骨右份局部骨质破坏代谢活跃,考虑转移。双侧上颌窦炎症。右上肺尖肺大泡。肝S4及S5囊肿。前列腺钙化灶。空腹6H以上,静脉注射18F-FDG,静息约60MMIN后行全身PET/CT断层显像,影像清晰。左上肺癌术后化疗后复发放化疗后:左上肺缺如;左下肺前底段及右上肺后段结节放射性分布略浓密,SUV约3.5,大者约0.9CM×1.0CM;右上肺尖囊状透亮影;余双侧肺纹理未见明显异常,气管、支气管通畅。左侧胸膜增厚放射浓聚,SUV约7.9,部分层面病灶侵犯左膈脚。双锁骨上、纵隔右侧气管食管沟、右上气管旁及隆突下多个淋巴结放射性分布较浓密,SUV约6.0,最大约1.0CM×1.3CM。纵隔主动脉旁小淋巴结放射性分布未见异常。双肺门及双侧腋窝未见肿大淋巴结及异常放射性分布。双侧脑实质密度、形态正常,放射性分布均匀、对称,诸脑室、脑池、脑沟、脑裂未见异常,中线结构居中。双侧上颌窦低密度影放射性稀疏。蝶窦、额窦及筛窦结构及放射性分布未见明显异常。鼻咽、口咽及喉咽结构及放射性分布未见明显异常。甲状腺形态结构及放射性分布未见明显异常。双上颈小淋巴结放射性分布未见明显异常。肝S4及S5囊状低密度影放射性稀疏,最大约0.5CM×0.6CM,CT值约19HU;余肝脏形态、结构及放射性分布未见明显异常。肝内、外胆管及胆总管未见扩张。胆囊、胃及十二指肠放射性分布未见明显异常。脾脏、胰腺、双肾及肾上腺形态、结构及放射性分布未见明显异常。右膈脚后、腹主动脉旁及右髂总血管旁数个淋巴结放射性分布较浓密,SUV约4.8,最大约1.2CM×1.4CM。盆腔放射性分布均匀。前列腺内数个点状高密度影放射性缺损,CT值约157HU。膀胱及肠管等形态、结构及放射性分布未见明显异常。左侧髂血管旁及双腹股沟未见肿大淋巴结及异常放射性分布。左侧第6后肋术后改变。骶骨右份局部骨质破坏放射性浓聚,SUV约6.6。余所见颅骨、余躯干骨、四肢骨放射性分布未见明显异常。</t>
   </si>
   <si>
     <t>左下肺前底段,右上肺后段,左侧胸膜,双锁骨上,纵隔,右膈角后,腹主动脉旁及右髂总血管旁淋巴结,骶骨</t>
   </si>
   <si>
-    <t>左乳癌术后，对比2017-04-14片：左乳癌术后改变，左前胸壁未见明确复发征象。双肺多发结节，考虑转移，较前缩小减少。左肺及右肺中叶条索灶，大致同前，考虑慢性炎症可能性大。右下肺点状钙化。右肺尖少许纤维灶，大致同前。双侧锁骨上窝、纵隔及双肺门多发淋巴结，较前缩小减少。右肾囊肿同前。颈部未见明显病变。左乳癌术后，对比2017-04-14片：左侧乳腺缺失，左前胸壁未见明确结节及肿物。右乳未见明确肿物。双侧腋窝未见明确肿大淋巴结。双肺见散在多发结节，大者位于右肺中叶，大小约为17MM×15MM，部分边界欠清，边缘见多发毛刺，增强扫描见明显强化，左肺上叶病灶侵犯左肺上叶尖后段支气管及邻近纵隔胸膜，病灶较前缩小减少。右肺下叶见两个点状钙化灶，直径约2MM，基本同前。左肺及右肺中叶见条索状、条片状高密度灶，边界不清，同前。右肺尖见少许条索状高密度灶，边界尚清，大致同前。气管及余支气管分支通畅。双侧胸腔未见积液。胸膜未见增厚。双侧锁骨上窝、右上下气管旁、主肺动脉窗、隆突下及双肺门见数个淋巴结，最大者约为14MM×9MM，边界不清，部分密度不均，增强扫描见不均匀强化，较前缩小减少。颈部结构清晰，各血管充盈良好，甲状腺双叶及峡部、双侧颌下腺、腮腺形态正常，密度均匀。喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。颈部肌群排列对称，密度均匀，肌间隙未见明显异常。余颈部各区未见肿大淋巴结。肝脏形态未见异常，各叶比例正常，其外形轮廓光整，肝实质密度尚均匀，未见异常强化。肝内胆管、胆总管未见扩张，内未见结石影。胆囊大小未见异常，其内未见结石影。肝门区未见异常。门静脉未见异常。脾大小未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。右肾见一类圆形低密度灶，直径约4MM，增强扫描未见强化，基本同前。双肾上腺及左肾未见明确异常。腹主动脉旁未见肿大淋巴结。扫描层面内骨质未见明显破坏。</t>
-  </si>
-  <si>
-    <t>右侧乳腺多发实性占位，结合病史，考虑恶性。左侧乳腺实性结节，考虑良性可能性大(纤维腺瘤?)，建议定期复查。右侧腋窝腋下组淋巴结肿大，考虑淋巴结转移瘤可能性大。左侧腋窝淋巴结，考虑良性淋巴结。乳腺各层组织结构清晰，右乳11-2点钟方向乳头旁可见不均质低回声灶，范围约59MM×44MM×22MM，形态不规则，边界不清，边缘呈毛玻璃状改变，内部回声不均匀，可见散在点状强回声，后方回声稍衰减，局部浅筋膜浅深层回声中断；其旁约11点钟距乳头约24MM处可见一低回声结节，大小约8MM×5MM，边界尚清，形态欠规则，前后径&gt;左右径，内部回声欠均匀，后方回声稍衰减，COOPER'S韧带部分受侵；右乳12点钟乳头约37MM另可见一低回声灶，大小约24MM×20MM×17MM，呈浅分叶状，边界尚清，内部回声不均，可见点状强回声，局部浅筋膜浅深层显示模糊，与上述较大病灶界限欠清。左乳内可见2个低回声结节，大小分别约：6MM×5MM(12点钟方向距乳头约9MM处)，7MM×5MM(5点钟方向距乳头约6MM处)，呈浅分叶状，边界清，似可见包膜样回声，局部浅筋膜浅深层连续；余腺组织尚均质，呈细蜂窝状较强回声。左侧乳腺导管未见扩张。CDFI：右乳11-2点钟病灶内可见少许点条状血流信号，可测及动脉频谱，VP8CM/S，RI0.84；左乳结节内未见明确血流信号。右侧腋窝可见多个淋巴结，均位于腋下组，大小约25MM×13MM，边界清，形态不规则，皮质不规则增厚，较厚处约10MM，皮髓质界限清，淋巴门存在。腋中组及腋上组淋巴结未探及。CDFI：上述淋巴结内可探及丰富血流信号。左侧腋窝可见一个淋巴结回声，位于腋下组，大小约11MM×5MM，边界清，椭圆形，皮髓质分界清，淋巴结门存在。CDFI：上述淋巴结内未见明确异常血流信号。</t>
+    <t>左乳癌术后,对比2017-04-14片:左乳癌术后改变,左前胸壁未见明确复发征象。双肺多发结节,考虑转移,较前缩小减少。左肺及右肺中叶条索灶,大致同前,考虑慢性炎症可能性大。右下肺点状钙化。右肺尖少许纤维灶,大致同前。双侧锁骨上窝、纵隔及双肺门多发淋巴结,较前缩小减少。右肾囊肿同前。颈部未见明显病变。左乳癌术后,对比2017-04-14片:左侧乳腺缺失,左前胸壁未见明确结节及肿物。右乳未见明确肿物。双侧腋窝未见明确肿大淋巴结。双肺见散在多发结节,大者位于右肺中叶,大小约为17MM×15MM,部分边界欠清,边缘见多发毛刺,增强扫描见明显强化,左肺上叶病灶侵犯左肺上叶尖后段支气管及邻近纵隔胸膜,病灶较前缩小减少。右肺下叶见两个点状钙化灶,直径约2MM,基本同前。左肺及右肺中叶见条索状、条片状高密度灶,边界不清,同前。右肺尖见少许条索状高密度灶,边界尚清,大致同前。气管及余支气管分支通畅。双侧胸腔未见积液。胸膜未见增厚。双侧锁骨上窝、右上下气管旁、主肺动脉窗、隆突下及双肺门见数个淋巴结,最大者约为14MM×9MM,边界不清,部分密度不均,增强扫描见不均匀强化,较前缩小减少。颈部结构清晰,各血管充盈良好,甲状腺双叶及峡部、双侧颌下腺、腮腺形态正常,密度均匀。喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。颈部肌群排列对称,密度均匀,肌间隙未见明显异常。余颈部各区未见肿大淋巴结。肝脏形态未见异常,各叶比例正常,其外形轮廓光整,肝实质密度尚均匀,未见异常强化。肝内胆管、胆总管未见扩张,内未见结石影。胆囊大小未见异常,其内未见结石影。肝门区未见异常。门静脉未见异常。脾大小未见异常,密度均匀。胰腺大小、形态未见异常,密度均匀。右肾见一类圆形低密度灶,直径约4MM,增强扫描未见强化,基本同前。双肾上腺及左肾未见明确异常。腹主动脉旁未见肿大淋巴结。扫描层面内骨质未见明显破坏。</t>
+  </si>
+  <si>
+    <t>右侧乳腺多发实性占位,结合病史,考虑恶性。左侧乳腺实性结节,考虑良性可能性大(纤维腺瘤?),建议定期复查。右侧腋窝腋下组淋巴结肿大,考虑淋巴结转移瘤可能性大。左侧腋窝淋巴结,考虑良性淋巴结。乳腺各层组织结构清晰,右乳11-2点钟方向乳头旁可见不均质低回声灶,范围约59MM×44MM×22MM,形态不规则,边界不清,边缘呈毛玻璃状改变,内部回声不均匀,可见散在点状强回声,后方回声稍衰减,局部浅筋膜浅深层回声中断;其旁约11点钟距乳头约24MM处可见一低回声结节,大小约8MM×5MM,边界尚清,形态欠规则,前后径&gt;左右径,内部回声欠均匀,后方回声稍衰减,COOPER'S韧带部分受侵;右乳12点钟乳头约37MM另可见一低回声灶,大小约24MM×20MM×17MM,呈浅分叶状,边界尚清,内部回声不均,可见点状强回声,局部浅筋膜浅深层显示模糊,与上述较大病灶界限欠清。左乳内可见2个低回声结节,大小分别约:6MM×5MM(12点钟方向距乳头约9MM处),7MM×5MM(5点钟方向距乳头约6MM处),呈浅分叶状,边界清,似可见包膜样回声,局部浅筋膜浅深层连续;余腺组织尚均质,呈细蜂窝状较强回声。左侧乳腺导管未见扩张。CDFI:右乳11-2点钟病灶内可见少许点条状血流信号,可测及动脉频谱,VP8CM/S,RI0.84;左乳结节内未见明确血流信号。右侧腋窝可见多个淋巴结,均位于腋下组,大小约25MM×13MM,边界清,形态不规则,皮质不规则增厚,较厚处约10MM,皮髓质界限清,淋巴门存在。腋中组及腋上组淋巴结未探及。CDFI:上述淋巴结内可探及丰富血流信号。左侧腋窝可见一个淋巴结回声,位于腋下组,大小约11MM×5MM,边界清,椭圆形,皮髓质分界清,淋巴结门存在。CDFI:上述淋巴结内未见明确异常血流信号。</t>
   </si>
   <si>
     <t>8MM×5MM,6MM×5MM,7MM×5MM</t>
@@ -2039,19 +2039,19 @@
     <t>右侧腋窝腋下组淋巴结</t>
   </si>
   <si>
-    <t>左乳癌术后9年复查，与2011-11-4片对比：左侧乳腺术后缺失，左前胸壁呈术后改变，局部未见明显软组织肿块。右侧乳腺大小、形态未见明显异常，未见异常密度灶及异常强化灶。双侧腋窝见小淋巴结，最大约为约为5MM×7MM，较前未见明显变化。双侧内乳区未见明显肿大淋巴结。右肺上叶、中叶见少许斑片影，边缘模糊，双肺余叶纹理清晰，未见明确结节灶。气管及支气管分支通畅。右下气管旁、主动脉弓旁、隆突下、右肺门、右中下肺叶间见多个淋巴结，最大约为14MM×18MM，密度尚均匀，较前稍增大。右侧胸腔见少量积液，左侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝S5见一低密度灶，大小约24MM×24MM，边界不清，增强扫描病变边缘轻度强化。肝内胆管未见异常，其内未见结石。胆囊大小未见异常，其内未见结石。胆总管未见扩张，其内未见结石。肝门区结构清晰，肝静脉、门静脉未见异常。脾大小、形态未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。双肾、双肾上腺大小、形态未见异常，密度均匀。膈脚后、腹腔干、腹主动脉旁未见肿大淋巴结。扫描层次中多个胸椎、腰椎椎体及附件、肋骨、胸骨、左侧肩胛骨及右侧肱骨见结节状骨质致密，部分骨皮质边缘欠光整，较前未见明显变化。左乳癌术后9年复查，与2011-11-4片对比：左乳癌术后改变，局部未见明显复发征象。肝S5低密度灶，考虑转移瘤。多个胸椎、腰椎椎体及附件、肋骨、胸骨、左侧肩胛骨及右侧肱骨骨转移瘤，较前未见明显变化。右肺上叶、中叶斑片影，较前未见明显变化。纵隔、右肺门、右中下肺叶间淋巴结，较前稍增大。双侧腋窝小淋巴结。右侧胸腔少量积液。</t>
+    <t>左乳癌术后9年复查,与2011-11-4片对比:左侧乳腺术后缺失,左前胸壁呈术后改变,局部未见明显软组织肿块。右侧乳腺大小、形态未见明显异常,未见异常密度灶及异常强化灶。双侧腋窝见小淋巴结,最大约为约为5MM×7MM,较前未见明显变化。双侧内乳区未见明显肿大淋巴结。右肺上叶、中叶见少许斑片影,边缘模糊,双肺余叶纹理清晰,未见明确结节灶。气管及支气管分支通畅。右下气管旁、主动脉弓旁、隆突下、右肺门、右中下肺叶间见多个淋巴结,最大约为14MM×18MM,密度尚均匀,较前稍增大。右侧胸腔见少量积液,左侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏形态未见异常,各叶比例在正常范围以内,其外形轮廓光整,密度不均匀。肝S5见一低密度灶,大小约24MM×24MM,边界不清,增强扫描病变边缘轻度强化。肝内胆管未见异常,其内未见结石。胆囊大小未见异常,其内未见结石。胆总管未见扩张,其内未见结石。肝门区结构清晰,肝静脉、门静脉未见异常。脾大小、形态未见异常,密度均匀。胰腺大小、形态未见异常,密度均匀。双肾、双肾上腺大小、形态未见异常,密度均匀。膈脚后、腹腔干、腹主动脉旁未见肿大淋巴结。扫描层次中多个胸椎、腰椎椎体及附件、肋骨、胸骨、左侧肩胛骨及右侧肱骨见结节状骨质致密,部分骨皮质边缘欠光整,较前未见明显变化。左乳癌术后9年复查,与2011-11-4片对比:左乳癌术后改变,局部未见明显复发征象。肝S5低密度灶,考虑转移瘤。多个胸椎、腰椎椎体及附件、肋骨、胸骨、左侧肩胛骨及右侧肱骨骨转移瘤,较前未见明显变化。右肺上叶、中叶斑片影,较前未见明显变化。纵隔、右肺门、右中下肺叶间淋巴结,较前稍增大。双侧腋窝小淋巴结。右侧胸腔少量积液。</t>
   </si>
   <si>
     <t>肝S5,腰椎椎体及附件,肋骨,胸骨,左侧肩胛骨,右侧肱骨,胸椎</t>
   </si>
   <si>
-    <t>1.左肺上叶占位，结合临床，左肺癌并考虑侵及邻近胸膜；纵隔淋巴结肿大，考虑转移；左肺门小淋巴结2.右肺局限性气肿3.肺动脉显影不良，建议观察并结合临床左肺上叶见一截面约4.2CM×4.8CM不规则软组织肿块，边缘分叶、毛糙，与邻近胸膜关系密切，其内见斑点状钙化灶，增强后呈轻中度强化。右肺胸膜下见少许泡状过度透光区。双侧胸膜轻度增厚。纵隔左上肺动脉旁见一短径约1.0CM肿大淋巴。左肺门见短径不足0.5CM小淋巴结。肺动脉显影延迟，局部显影不良。</t>
+    <t>1.左肺上叶占位,结合临床,左肺癌并考虑侵及邻近胸膜;纵隔淋巴结肿大,考虑转移;左肺门小淋巴结2.右肺局限性气肿3.肺动脉显影不良,建议观察并结合临床左肺上叶见一截面约4.2CM×4.8CM不规则软组织肿块,边缘分叶、毛糙,与邻近胸膜关系密切,其内见斑点状钙化灶,增强后呈轻中度强化。右肺胸膜下见少许泡状过度透光区。双侧胸膜轻度增厚。纵隔左上肺动脉旁见一短径约1.0CM肿大淋巴。左肺门见短径不足0.5CM小淋巴结。肺动脉显影延迟,局部显影不良。</t>
   </si>
   <si>
     <t>4.2CM×4.8CM</t>
   </si>
   <si>
-    <t>乙状结肠癌综合治疗后，与2013-5-20片比较：双肺多发转移瘤，病灶数目及大小较前变化不大。右下肺叶片块灶，炎症?不排除不典型转移瘤，建议抗炎后复查。肝脏多发转移瘤，较前未见明显变化。纵隔、右侧心缘、腹膜后淋巴结，较前未见明显变化。腹盆腔肿物，考虑种植转移，较前明显增大。腹盆腔见少量积液，较前增多。脾肿大。乙状结肠癌综合治疗后，与2013-5-20片比较：双肺纹理清晰，双肺可见多发结节，直径约2MM~10MM，边界清楚，大部分病灶中心可见小空洞，实性成分较前缩小，病灶数目及大小较前变化不大。右下肺叶见一不规则形片块灶，大小约50MM×39MM，轮廓不光整，密度欠均匀，肺纹理轻度纠集，气管及支气管分支通畅。主动脉旁、隆突下、右侧心缘见数个淋巴结，最大者约10MM×21MM，增强后见明显强化，较前未见明显变化。双侧胸腔未见积液。双侧胸膜未见增厚、粘连。肝脏形态不正常，肝内可见多发结节状、团块状病灶，部分融合，最大者长径为65MM，部分呈轻度强化，部分呈环形强化，较前未见明显变化。肝内胆管未见异常，其内未见结石影，胆囊大小未见异常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉未见异常。脾增大，密度均匀。胰腺大小、形态未见异常，密度均匀。双肾所见未见异常。双肾上腺所见未见异常。腹腔干、腹主动脉旁见多个淋巴结，最大位于腹腔干左旁，大小约13MM×19MM，较前变化不大。腹腔见少量积液，较前增大。腹盆腔见膀胱前上方一巨大软组织灶，病灶大小约为224MM×124MM，病灶边界清，呈囊实性，实性部分见轻度强化，病灶与膀胱顶壁及肠系膜分界欠清，较前增大。膀胱充盈良好，境界清楚。子宫、子宫颈大小、形态未见异常。双侧附件区未见明显异常。盆腔见少量积液。扫描所见骨质未见破坏征象。</t>
+    <t>乙状结肠癌综合治疗后,与2013-5-20片比较:双肺多发转移瘤,病灶数目及大小较前变化不大。右下肺叶片块灶,炎症?不排除不典型转移瘤,建议抗炎后复查。肝脏多发转移瘤,较前未见明显变化。纵隔、右侧心缘、腹膜后淋巴结,较前未见明显变化。腹盆腔肿物,考虑种植转移,较前明显增大。腹盆腔见少量积液,较前增多。脾肿大。乙状结肠癌综合治疗后,与2013-5-20片比较:双肺纹理清晰,双肺可见多发结节,直径约2MM~10MM,边界清楚,大部分病灶中心可见小空洞,实性成分较前缩小,病灶数目及大小较前变化不大。右下肺叶见一不规则形片块灶,大小约50MM×39MM,轮廓不光整,密度欠均匀,肺纹理轻度纠集,气管及支气管分支通畅。主动脉旁、隆突下、右侧心缘见数个淋巴结,最大者约10MM×21MM,增强后见明显强化,较前未见明显变化。双侧胸腔未见积液。双侧胸膜未见增厚、粘连。肝脏形态不正常,肝内可见多发结节状、团块状病灶,部分融合,最大者长径为65MM,部分呈轻度强化,部分呈环形强化,较前未见明显变化。肝内胆管未见异常,其内未见结石影,胆囊大小未见异常,其内未见结石影,胆总管未见扩张,其内未见结石影。肝门区未见异常。门静脉未见异常。脾增大,密度均匀。胰腺大小、形态未见异常,密度均匀。双肾所见未见异常。双肾上腺所见未见异常。腹腔干、腹主动脉旁见多个淋巴结,最大位于腹腔干左旁,大小约13MM×19MM,较前变化不大。腹腔见少量积液,较前增大。腹盆腔见膀胱前上方一巨大软组织灶,病灶大小约为224MM×124MM,病灶边界清,呈囊实性,实性部分见轻度强化,病灶与膀胱顶壁及肠系膜分界欠清,较前增大。膀胱充盈良好,境界清楚。子宫、子宫颈大小、形态未见异常。双侧附件区未见明显异常。盆腔见少量积液。扫描所见骨质未见破坏征象。</t>
   </si>
   <si>
     <t>乙状结肠</t>
@@ -2060,31 +2060,31 @@
     <t>双肺,右下肺,肝脏,腹盆腔</t>
   </si>
   <si>
-    <t>右侧乳腺9、10点钟，乳头旁均可见一不规则形低回声灶，大小约20MM×11MM和13MM×7MM，肿块边界不清，呈稍高回声毛玻璃状改变，内回声分布不均匀，可见点状钙化点，后方回声衰减，肿块局部的浅筋膜浅层受侵中断，浅筋膜深层尚连续。CDFI：上述病灶内部可见点状血流信号。左侧乳腺各组织结构清晰，腺组织较均质，呈细蜂窝状较强回声，导管未见扩张。右侧腋窝可见多个淋巴结回声，最大位于腋下组约24MM×15MM、腋中组最大约10MM×9MM，腋上组最大约8MM×6MM，边界清，皮髓质分界不清，淋巴结门消失。CDFI：上述淋巴结内未见明确血流信号。左侧腋窝未见明确异常肿大淋巴结。右乳腺实性占位性病变，考虑乳腺癌，病灶较前(2013-08-20)缩小。右侧腋窝淋巴结肿大，考虑转移性淋巴结。左侧乳腺、左侧腋窝未见占位性病变。</t>
+    <t>右侧乳腺9、10点钟,乳头旁均可见一不规则形低回声灶,大小约20MM×11MM和13MM×7MM,肿块边界不清,呈稍高回声毛玻璃状改变,内回声分布不均匀,可见点状钙化点,后方回声衰减,肿块局部的浅筋膜浅层受侵中断,浅筋膜深层尚连续。CDFI:上述病灶内部可见点状血流信号。左侧乳腺各组织结构清晰,腺组织较均质,呈细蜂窝状较强回声,导管未见扩张。右侧腋窝可见多个淋巴结回声,最大位于腋下组约24MM×15MM、腋中组最大约10MM×9MM,腋上组最大约8MM×6MM,边界清,皮髓质分界不清,淋巴结门消失。CDFI:上述淋巴结内未见明确血流信号。左侧腋窝未见明确异常肿大淋巴结。右乳腺实性占位性病变,考虑乳腺癌,病灶较前(2013-08-20)缩小。右侧腋窝淋巴结肿大,考虑转移性淋巴结。左侧乳腺、左侧腋窝未见占位性病变。</t>
   </si>
   <si>
     <t>20MM×11MM,13MM×7MM</t>
   </si>
   <si>
-    <t>乳腺癌术后多发骨转移化疗后复查，与2014-02-10片对比：左乳腺术后缺失，右乳未见明确异常。双肺见多个类圆形或不规则病灶，所有病灶大小基本同前，未见新发病灶，最大者约24MM×17MM，病灶边界欠光整，密度欠均匀，未见毛刺征，增强扫描轻度强化。双上肺见片状、大片状密度增高影，内见多发囊状透亮影，并见散在钙化，边欠清，大致同前。双胸膜无增厚、粘连。双侧胸腔未见积液。左锁骨上窝、左腋窝、左侧上气管旁、主动脉旁见多个肿大淋巴结，大致同前，最大者位于左侧锁骨上窝，大小约29MM×20MM，内可见液化坏死区及钙化点。双肺门未见肿大淋巴结。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内见多发稍低密度灶，边缘模糊，最大者大小约11MM×9MM，边界欠清晰，动脉期呈轻度强化，门脉期及延迟期强化程度减低，大致同前。肝内胆管未见扩张，胆囊大小正常，胆总管轻度扩张，其内均未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺体尾部见类圆形低密度影，大小约22MM×21MM，边界欠清，增强扫描见不均匀轻度强化。双肾皮质见多个小类圆形低密度影，增强扫描未见强化。双肾上腺所见正常。膈脚后、腹膜后未见肿大淋巴结。左侧大脑额叶见点状钙化影，余双侧大脑、小脑、脑干未见异常密度影。各脑室及脑池大小、形态未见异常。大脑中线结构未见移位，未见占位性病变。双眼球后未见占位性病变。扫描范围内所见双侧上颌窦、筛窦、蝶窦充气良好，骨壁完整。双侧额骨、顶骨、右侧枕骨、斜坡见多处密度增高灶。双侧肱骨、左侧肩胛骨、多个胸椎、腰椎、双侧多根肋骨、胸骨、左髂骨见骨质破坏。右侧第3前肋周围见软组织肿块影，大小为39MM×19MM，边界欠清晰，增强扫描不均匀强化，大致同前。乳腺癌术后多发骨转移化疗后复查，与2014-02-10片对比：左乳腺术后缺失，右乳未见明确异常。双肺转移瘤，大致同前，未见新发病灶。双上肺纤维钙化灶。左锁骨上、纵隔淋巴结，大致同前。肝内多发病灶，大致同前。胰腺体尾部类圆形病灶，考虑转移瘤。双肾皮质小囊肿。脑转移瘤治疗后，左侧大脑额叶见点状钙化影。颅骨、双侧肱骨、左侧肩胛骨、胸骨、胸椎、腰椎、双侧肋骨、左侧髂骨多发骨转移瘤。</t>
+    <t>乳腺癌术后多发骨转移化疗后复查,与2014-02-10片对比:左乳腺术后缺失,右乳未见明确异常。双肺见多个类圆形或不规则病灶,所有病灶大小基本同前,未见新发病灶,最大者约24MM×17MM,病灶边界欠光整,密度欠均匀,未见毛刺征,增强扫描轻度强化。双上肺见片状、大片状密度增高影,内见多发囊状透亮影,并见散在钙化,边欠清,大致同前。双胸膜无增厚、粘连。双侧胸腔未见积液。左锁骨上窝、左腋窝、左侧上气管旁、主动脉旁见多个肿大淋巴结,大致同前,最大者位于左侧锁骨上窝,大小约29MM×20MM,内可见液化坏死区及钙化点。双肺门未见肿大淋巴结。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,肝内见多发稍低密度灶,边缘模糊,最大者大小约11MM×9MM,边界欠清晰,动脉期呈轻度强化,门脉期及延迟期强化程度减低,大致同前。肝内胆管未见扩张,胆囊大小正常,胆总管轻度扩张,其内均未见结石影。肝门区正常。门静脉所见正常。脾大小正常,密度均匀。胰腺体尾部见类圆形低密度影,大小约22MM×21MM,边界欠清,增强扫描见不均匀轻度强化。双肾皮质见多个小类圆形低密度影,增强扫描未见强化。双肾上腺所见正常。膈脚后、腹膜后未见肿大淋巴结。左侧大脑额叶见点状钙化影,余双侧大脑、小脑、脑干未见异常密度影。各脑室及脑池大小、形态未见异常。大脑中线结构未见移位,未见占位性病变。双眼球后未见占位性病变。扫描范围内所见双侧上颌窦、筛窦、蝶窦充气良好,骨壁完整。双侧额骨、顶骨、右侧枕骨、斜坡见多处密度增高灶。双侧肱骨、左侧肩胛骨、多个胸椎、腰椎、双侧多根肋骨、胸骨、左髂骨见骨质破坏。右侧第3前肋周围见软组织肿块影,大小为39MM×19MM,边界欠清晰,增强扫描不均匀强化,大致同前。乳腺癌术后多发骨转移化疗后复查,与2014-02-10片对比:左乳腺术后缺失,右乳未见明确异常。双肺转移瘤,大致同前,未见新发病灶。双上肺纤维钙化灶。左锁骨上、纵隔淋巴结,大致同前。肝内多发病灶,大致同前。胰腺体尾部类圆形病灶,考虑转移瘤。双肾皮质小囊肿。脑转移瘤治疗后,左侧大脑额叶见点状钙化影。颅骨、双侧肱骨、左侧肩胛骨、胸骨、胸椎、腰椎、双侧肋骨、左侧髂骨多发骨转移瘤。</t>
   </si>
   <si>
     <t>双肺,胰腺体尾部,脑,双侧肱骨,左侧肩胛骨,胸椎,腰椎,胸骨,颅骨,双侧肋,左侧髂骨</t>
   </si>
   <si>
-    <t>左下肺癌化疗后：1、左肺门高代谢占位，与左肺门及纵隔7区增大淋巴结分界不清，符合肺癌表现，病变仍有活性。纵隔3P、4L/R、7区及左侧肺门多发淋巴结转移，左右肺动脉主干受挤压并狭窄。双肺上叶散在微小结节，纵隔5、8区小淋巴结，未见高代谢，建议随访。心包积液。2、左肺下叶胸膜下小结节，伴轻度代谢，倾向炎性，建议对比老片或定期复查。双肺气肿、肺大泡、左肺下叶及右肺中叶索条、右肺上叶钙化结节、双侧胸膜轻度增厚伴钙化。3、甲状腺右叶稍低密度结节，未见高代谢，倾向良性，请结合B超。4、骨髓代谢弥漫性增高，首先考虑骨髓反应性增殖，随访。空腹6小时以上，静脉注射显像剂，平静休息60MMIN后行胸部PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：左下肺癌化疗后：左肺下叶外基底段胸膜下见一不规则小结节，大小约1.2CM×0.8CM，边缘见短索条牵拉邻近胸膜，伴轻度摄取，最大SUV1.45。左肺门见不规则放射性浓聚占位灶，与左肺门及纵隔7区增大浓聚淋巴结分界不清，与左肺门大血管关系密切，较大层面约2.9CM×2.4CM，最大SUV约11.77。双肺上叶另见散在微小结节，未见高摄取，右肺上叶胸膜下见一钙化结节。左肺下叶及右肺中叶另见高密度索条，未见明确高摄取。双肺另见多发无壁透亮区，部分融合。双侧胸膜轻度增厚伴钙化，胸水征阴性。纵隔3P、4L/R、7区及左侧肺门淋巴结肿大，部分融合，挤压左右肺动脉主干并致狭窄，纵隔7区融合淋巴结较大层面约4.9CM×4.3CM，均伴放射性浓聚，最大SUV约10.86-13.31。纵隔5、8区另见少许小淋巴结，较大者约1.2CM×0.4CM，均未见明确高摄取。心肌显影，心包见少量积液。甲状腺两叶不大，右叶后侧实质内见一稍低密度结节，约1.1CM×0.9CM，未见明确高摄取，左叶腺实质内未见异常放射性增高灶。双锁骨上区未见明显异常淋巴结浓聚。胃充盈不良，胃壁显影如常。扫及肝脏、胆囊、胰腺、脾脏、双肾及双侧肾上腺未见异常占位及放射性浓聚灶。扫及上腹腹腔内及腹膜后未见明显肿大或浓聚淋巴结。扫及上腹未见腹水。骨髓放射性分布弥漫性增高。</t>
+    <t>左下肺癌化疗后:1、左肺门高代谢占位,与左肺门及纵隔7区增大淋巴结分界不清,符合肺癌表现,病变仍有活性。纵隔3P、4L/R、7区及左侧肺门多发淋巴结转移,左右肺动脉主干受挤压并狭窄。双肺上叶散在微小结节,纵隔5、8区小淋巴结,未见高代谢,建议随访。心包积液。2、左肺下叶胸膜下小结节,伴轻度代谢,倾向炎性,建议对比老片或定期复查。双肺气肿、肺大泡、左肺下叶及右肺中叶索条、右肺上叶钙化结节、双侧胸膜轻度增厚伴钙化。3、甲状腺右叶稍低密度结节,未见高代谢,倾向良性,请结合B超。4、骨髓代谢弥漫性增高,首先考虑骨髓反应性增殖,随访。空腹6小时以上,静脉注射显像剂,平静休息60MMIN后行胸部PET及CT断层显像,PET图像经衰减校正及重建后,将PET及CT图像行多平面、多幅显示:左下肺癌化疗后:左肺下叶外基底段胸膜下见一不规则小结节,大小约1.2CM×0.8CM,边缘见短索条牵拉邻近胸膜,伴轻度摄取,最大SUV1.45。左肺门见不规则放射性浓聚占位灶,与左肺门及纵隔7区增大浓聚淋巴结分界不清,与左肺门大血管关系密切,较大层面约2.9CM×2.4CM,最大SUV约11.77。双肺上叶另见散在微小结节,未见高摄取,右肺上叶胸膜下见一钙化结节。左肺下叶及右肺中叶另见高密度索条,未见明确高摄取。双肺另见多发无壁透亮区,部分融合。双侧胸膜轻度增厚伴钙化,胸水征阴性。纵隔3P、4L/R、7区及左侧肺门淋巴结肿大,部分融合,挤压左右肺动脉主干并致狭窄,纵隔7区融合淋巴结较大层面约4.9CM×4.3CM,均伴放射性浓聚,最大SUV约10.86-13.31。纵隔5、8区另见少许小淋巴结,较大者约1.2CM×0.4CM,均未见明确高摄取。心肌显影,心包见少量积液。甲状腺两叶不大,右叶后侧实质内见一稍低密度结节,约1.1CM×0.9CM,未见明确高摄取,左叶腺实质内未见异常放射性增高灶。双锁骨上区未见明显异常淋巴结浓聚。胃充盈不良,胃壁显影如常。扫及肝脏、胆囊、胰腺、脾脏、双肾及双侧肾上腺未见异常占位及放射性浓聚灶。扫及上腹腹腔内及腹膜后未见明显肿大或浓聚淋巴结。扫及上腹未见腹水。骨髓放射性分布弥漫性增高。</t>
   </si>
   <si>
     <t>纵隔3P,4L/R,7区,左侧肺门淋巴结</t>
   </si>
   <si>
-    <t>右肺MT伴阻塞性改变，右肺、右侧胸膜及纵隔、肺门淋巴结多发转移，总体较2017-05-22片进展；右侧胸腔包裹性积液；两肺间质性改变较前相仿；左肺上叶小结节，右心膈角淋巴结肿大，左侧肾上腺占位，较前相仿。右肺门可见不规则团块状软组织密度灶，边缘毛糙，局部支气管变窄，外围见斑片影，与右肺门团块分界不清；右肺见结节灶，最大约1.7CM；两肺胸膜下区见网格状高密度，可见多发小囊形低密度影，左肺上叶小结节(IM13)；纵隔内及肺门可见肿大淋巴结；右侧局部胸膜(包括斜裂胸膜)增厚伴结节状改变；右侧胸腔可见积液。右心膈角淋巴结肿大。心包增厚。所及左侧肾上腺区可见团块影，以脂肪密度为主。</t>
+    <t>右肺MT伴阻塞性改变,右肺、右侧胸膜及纵隔、肺门淋巴结多发转移,总体较2017-05-22片进展;右侧胸腔包裹性积液;两肺间质性改变较前相仿;左肺上叶小结节,右心膈角淋巴结肿大,左侧肾上腺占位,较前相仿。右肺门可见不规则团块状软组织密度灶,边缘毛糙,局部支气管变窄,外围见斑片影,与右肺门团块分界不清;右肺见结节灶,最大约1.7CM;两肺胸膜下区见网格状高密度,可见多发小囊形低密度影,左肺上叶小结节(IM13);纵隔内及肺门可见肿大淋巴结;右侧局部胸膜(包括斜裂胸膜)增厚伴结节状改变;右侧胸腔可见积液。右心膈角淋巴结肿大。心包增厚。所及左侧肾上腺区可见团块影,以脂肪密度为主。</t>
   </si>
   <si>
     <t>右肺,右侧胸膜及纵隔,肺门淋巴结</t>
   </si>
   <si>
-    <t>右肺上叶纵隔旁见一小结节灶，边缘分叶、毛糙，与邻近胸膜可见牵拉，截面积约1.5CM×0.6CM；增强扫描呈不均匀强化。双侧下叶见少许片絮状及条索状密度增高影。右肺门、纵隔内2R、3A、4R、4L及右锁上见多发肿大淋巴结，大者短径约1.5CM，增强呈不均匀强化。右侧腋窝见增大淋巴结，短径约0.8CM。双侧胸膜示轻度增厚。右下肺动脉充盈尚可。扫描野肝实质内见多发低密度灶，边缘模糊，大者直径约2.1CM，呈边缘强化。另于肝实质内见小低密度灶，边界较清，直径不足0.5CM。左侧肩胛骨、双侧多发肋骨、多发胸椎椎体及附件示溶骨性骨质改变，部分骨质周围可见软组织肿块形成，呈不均匀强化。1.结合临床，考虑右肺癌；右肺门及纵隔、右锁上淋巴结转移；较前变化不著；肝转移，较前略好转；骨转移，变化不著2.右侧腋窝淋巴结肿大3.肝小囊肿4.右侧肺动脉栓塞已基本显示不清</t>
+    <t>右肺上叶纵隔旁见一小结节灶,边缘分叶、毛糙,与邻近胸膜可见牵拉,截面积约1.5CM×0.6CM;增强扫描呈不均匀强化。双侧下叶见少许片絮状及条索状密度增高影。右肺门、纵隔内2R、3A、4R、4L及右锁上见多发肿大淋巴结,大者短径约1.5CM,增强呈不均匀强化。右侧腋窝见增大淋巴结,短径约0.8CM。双侧胸膜示轻度增厚。右下肺动脉充盈尚可。扫描野肝实质内见多发低密度灶,边缘模糊,大者直径约2.1CM,呈边缘强化。另于肝实质内见小低密度灶,边界较清,直径不足0.5CM。左侧肩胛骨、双侧多发肋骨、多发胸椎椎体及附件示溶骨性骨质改变,部分骨质周围可见软组织肿块形成,呈不均匀强化。1.结合临床,考虑右肺癌;右肺门及纵隔、右锁上淋巴结转移;较前变化不著;肝转移,较前略好转;骨转移,变化不著2.右侧腋窝淋巴结肿大3.肝小囊肿4.右侧肺动脉栓塞已基本显示不清</t>
   </si>
   <si>
     <t>1.5CM×0.6CM</t>
@@ -2093,31 +2093,31 @@
     <t>肝,骨,右肺门及纵隔,右锁上淋巴结</t>
   </si>
   <si>
-    <t>左乳癌术后、左锁骨上窝淋巴结转移术后，与2011-7-20片对比：左侧内乳区、主动脉弓旁淋巴结肿大，较前增多增大。左上肺叶纤维增殖灶。甲状腺右叶病灶，考虑结节性甲状腺肿可能性大。右侧乳腺结节，较前未见明显变化。肝囊肿，肾囊肿。左乳癌术后、左锁骨上窝淋巴结转移术后，与2011-7-20片对比：左侧乳腺缺失，左侧胸壁未见明显结节影。左侧内乳区、双侧最上纵隔组、主动脉弓旁可见数个淋巴结，直径约6~16MM，增强后可见明显强化，较前增大增多。甲状腺右叶增大，内见结节状病灶，大小约为18MM×21MM及16MM×17MM，边界清楚，内见钙化，肿物下缘约平胸骨切迹，局部气管无明显受压变窄，增强后可见明显强化，未见明显变化。右乳可见结节状病灶，大小约6MM×13MM及9MM×9MM，增强后可见较明显强化，与前片对比，未见明显变化。左上肺叶可见斑片状、条索状影，右肺纹理清晰，未见结节影；气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。双侧胸腔未见积液；胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝内见多个囊性低密度区，大小约3MM×3MM~48MM×36MM，边界清楚，密度均匀，增强后未见强化，与前片对比，较前未见明显变化；肝内胆管未见扩张，胆囊大小正常，其内未见结石影，胆总管未见扩张。肝门区未见肿大淋巴结；门静脉未见充盈缺损。脾大小正常，密度均匀；胰腺大小、形态正常，密度均匀；双肾大小、形态正常，双肾实质见数个小囊性灶，大小约5MM×5MM~10MM×10MM；双侧肾上腺大小、形态、密度正常；膈脚后、腹主动脉旁未见肿大淋巴结。所见骨质未见明确破坏征象。</t>
+    <t>左乳癌术后、左锁骨上窝淋巴结转移术后,与2011-7-20片对比:左侧内乳区、主动脉弓旁淋巴结肿大,较前增多增大。左上肺叶纤维增殖灶。甲状腺右叶病灶,考虑结节性甲状腺肿可能性大。右侧乳腺结节,较前未见明显变化。肝囊肿,肾囊肿。左乳癌术后、左锁骨上窝淋巴结转移术后,与2011-7-20片对比:左侧乳腺缺失,左侧胸壁未见明显结节影。左侧内乳区、双侧最上纵隔组、主动脉弓旁可见数个淋巴结,直径约6~16MM,增强后可见明显强化,较前增大增多。甲状腺右叶增大,内见结节状病灶,大小约为18MM×21MM及16MM×17MM,边界清楚,内见钙化,肿物下缘约平胸骨切迹,局部气管无明显受压变窄,增强后可见明显强化,未见明显变化。右乳可见结节状病灶,大小约6MM×13MM及9MM×9MM,增强后可见较明显强化,与前片对比,未见明显变化。左上肺叶可见斑片状、条索状影,右肺纹理清晰,未见结节影;气管及支气管分枝通畅,未见明显软组织肿物或受压变窄。双侧胸腔未见积液;胸膜未见增厚。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度欠均匀,肝内见多个囊性低密度区,大小约3MM×3MM~48MM×36MM,边界清楚,密度均匀,增强后未见强化,与前片对比,较前未见明显变化;肝内胆管未见扩张,胆囊大小正常,其内未见结石影,胆总管未见扩张。肝门区未见肿大淋巴结;门静脉未见充盈缺损。脾大小正常,密度均匀;胰腺大小、形态正常,密度均匀;双肾大小、形态正常,双肾实质见数个小囊性灶,大小约5MM×5MM~10MM×10MM;双侧肾上腺大小、形态、密度正常;膈脚后、腹主动脉旁未见肿大淋巴结。所见骨质未见明确破坏征象。</t>
   </si>
   <si>
     <t>左锁骨上窝淋巴结</t>
   </si>
   <si>
-    <t>1.结合临床，右肺癌治疗后，右肺门及纵隔淋巴结转移，较前2014-10-10好转；双肺转移，较前明显好转2.结合临床，左乳癌治疗后，较前变化不著右肺上叶示一不规则软组织密度结节灶，截面约1.1CM×0.8CM，边缘分叶、毛刺，牵拉邻近胸膜凹陷，增强后呈较显著强化。右肺上叶前段示一混合磨玻璃密度灶，截面约3.6CM×1.7CM，边缘毛刺牵拉邻近胸膜凹陷，内见支气管充气征。右肺中叶近斜裂胸膜处示一软组织结节灶，直径约1.0CM，边缘毛刺，增强后呈较显著强化。另右肺跨斜裂胸膜处可见软组织密度影，形态不规则，牵拉邻近胸膜凹陷，内见支气管充气征。余双肺见多发结节灶，大者直径约0.2CM。左乳见一不规则软组织结节灶，截面约0.7CM×1.0CM，边缘分叶可见少许毛刺，增强后呈轻度强化。纵隔内右上气管旁、气管前腔静脉后、右肺门见多发增大淋巴结，大者短径约0.7CM，部分内可见钙化。</t>
+    <t>1.结合临床,右肺癌治疗后,右肺门及纵隔淋巴结转移,较前2014-10-10好转;双肺转移,较前明显好转2.结合临床,左乳癌治疗后,较前变化不著右肺上叶示一不规则软组织密度结节灶,截面约1.1CM×0.8CM,边缘分叶、毛刺,牵拉邻近胸膜凹陷,增强后呈较显著强化。右肺上叶前段示一混合磨玻璃密度灶,截面约3.6CM×1.7CM,边缘毛刺牵拉邻近胸膜凹陷,内见支气管充气征。右肺中叶近斜裂胸膜处示一软组织结节灶,直径约1.0CM,边缘毛刺,增强后呈较显著强化。另右肺跨斜裂胸膜处可见软组织密度影,形态不规则,牵拉邻近胸膜凹陷,内见支气管充气征。余双肺见多发结节灶,大者直径约0.2CM。左乳见一不规则软组织结节灶,截面约0.7CM×1.0CM,边缘分叶可见少许毛刺,增强后呈轻度强化。纵隔内右上气管旁、气管前腔静脉后、右肺门见多发增大淋巴结,大者短径约0.7CM,部分内可见钙化。</t>
   </si>
   <si>
     <t>右肺门,纵隔淋巴结,双肺</t>
   </si>
   <si>
-    <t>与2013-05-22前片对比：1.左乳腺癌；双侧腋窝淋巴结转移，较前进展；2.左肺上叶磨玻璃密度影，较前略大；3.右肺粟粒灶，较前相仿。请结合临床随诊。左肺上叶前段可见磨玻璃密度影，最大截面大小约1.1CM×1.05CM。右肺见粟粒影。两肺纹理尚清。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心影增大，大血管壁可见钙化影。所示左侧乳腺可见团块影，最大截面大小约8.91CM×5.42CM，其内密度欠均，邻近左乳皮肤增厚。双侧腋窝淋巴结增大，以左侧为著，较大者径约2.0CM。</t>
+    <t>与2013-05-22前片对比:1.左乳腺癌;双侧腋窝淋巴结转移,较前进展;2.左肺上叶磨玻璃密度影,较前略大;3.右肺粟粒灶,较前相仿。请结合临床随诊。左肺上叶前段可见磨玻璃密度影,最大截面大小约1.1CM×1.05CM。右肺见粟粒影。两肺纹理尚清。两肺门区未见异常。所示气管支气管影通畅。纵隔内未见异常增大的淋巴结。两胸腔无积液征象。心影增大,大血管壁可见钙化影。所示左侧乳腺可见团块影,最大截面大小约8.91CM×5.42CM,其内密度欠均,邻近左乳皮肤增厚。双侧腋窝淋巴结增大,以左侧为著,较大者径约2.0CM。</t>
   </si>
   <si>
     <t>8.91CM×5.42CM</t>
   </si>
   <si>
-    <t>乳腺癌术后：左乳术后缺失，左侧前胸壁皮肤可见结节状增厚，最大结节约7MM×4MM。右乳未见明确异常。右侧胸壁皮下脂肪层下见少量长条形积气影。双侧腋窝、双侧锁骨上窝未见肿大淋巴结。右肺体积缩小，右下肺叶见团片状高密度影，增强扫描呈明显强化。双肺内见散在小结节灶，直径大小约2~7MM不等。右侧胸膜呈结节状增厚，增强扫描明显强化。右侧胸腔见大量积液及包裹性积液。左侧胸膜未见增厚，左侧未见胸腔积液。双侧肺门、右侧上下气管旁、左侧上下气管旁、隆突下见肿大淋巴结，最大者短径约16MM，增强扫描较明显强化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整。肝S5、8分别见类圆形低密度灶，长径约5MM和3MM，增强扫描未见强化。肝内胆管正常。肝门区和门静脉未见异常。胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。左侧肾上腺结合部及内侧支增粗，似见小结节，大小约12MM×9MM，增强扫描中度强化。双肾所见及右肾上腺未见异常。腹主动脉旁未见肿大淋巴结。右侧肱骨头见类圆形致密灶，其余骨质未见异常。乳腺癌术后：左乳术后改变，左侧前胸壁皮肤结节状增厚，考虑复发。双肺转移瘤，右上肺肺不张。右侧胸膜转移瘤，右侧大量胸腔积液及包裹性积液。双侧肺门、纵隔淋巴结肿大，考虑转移可能。左侧肾上腺结合部及内侧支增粗，似见小结节，转移?建议随诊。肝S5、8小囊肿。右侧肱骨头类圆形致密灶，考虑骨岛。</t>
+    <t>乳腺癌术后:左乳术后缺失,左侧前胸壁皮肤可见结节状增厚,最大结节约7MM×4MM。右乳未见明确异常。右侧胸壁皮下脂肪层下见少量长条形积气影。双侧腋窝、双侧锁骨上窝未见肿大淋巴结。右肺体积缩小,右下肺叶见团片状高密度影,增强扫描呈明显强化。双肺内见散在小结节灶,直径大小约2~7MM不等。右侧胸膜呈结节状增厚,增强扫描明显强化。右侧胸腔见大量积液及包裹性积液。左侧胸膜未见增厚,左侧未见胸腔积液。双侧肺门、右侧上下气管旁、左侧上下气管旁、隆突下见肿大淋巴结,最大者短径约16MM,增强扫描较明显强化。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整。肝S5、8分别见类圆形低密度灶,长径约5MM和3MM,增强扫描未见强化。肝内胆管正常。肝门区和门静脉未见异常。胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。左侧肾上腺结合部及内侧支增粗,似见小结节,大小约12MM×9MM,增强扫描中度强化。双肾所见及右肾上腺未见异常。腹主动脉旁未见肿大淋巴结。右侧肱骨头见类圆形致密灶,其余骨质未见异常。乳腺癌术后:左乳术后改变,左侧前胸壁皮肤结节状增厚,考虑复发。双肺转移瘤,右上肺肺不张。右侧胸膜转移瘤,右侧大量胸腔积液及包裹性积液。双侧肺门、纵隔淋巴结肿大,考虑转移可能。左侧肾上腺结合部及内侧支增粗,似见小结节,转移?建议随诊。肝S5、8小囊肿。右侧肱骨头类圆形致密灶,考虑骨岛。</t>
   </si>
   <si>
     <t>双肺,右侧胸膜,双侧肺门,纵隔淋巴结,左侧肾上腺结合部及内侧支</t>
   </si>
   <si>
-    <t>与2018-6-20胸部CT比较：右肺上叶尖后段分叶状软组织密度结节较前略减小，原约14MM×11MM(IM17)，现约12MM×6MM(IM19)，轻度强化，其远端片状高密度影较前略缩小。双肺上叶多发粟粒样结节略减少。纵隔、右肺门、锁骨上区多发肿大淋巴结部分同前，较大约18MM×9MM(IM28)，部分缩小，原约8MM者，现约5MM(IMA7)。双侧胸膜光滑，未见胸水征象。右侧第4肋、左侧第7、8肋、胸5、7、8及腰1椎体多发骨质破坏灶密度较前明显增高。右肺上叶癌及远端阻塞性炎症减轻。双肺粟粒样结节略减少。纵隔、右肺门、锁骨上区多发淋巴结部分同前，部分缩小。双侧肋骨及胸腰椎转移较前密度增高，考虑好转表现。</t>
+    <t>与2018-6-20胸部CT比较:右肺上叶尖后段分叶状软组织密度结节较前略减小,原约14MM×11MM(IM17),现约12MM×6MM(IM19),轻度强化,其远端片状高密度影较前略缩小。双肺上叶多发粟粒样结节略减少。纵隔、右肺门、锁骨上区多发肿大淋巴结部分同前,较大约18MM×9MM(IM28),部分缩小,原约8MM者,现约5MM(IMA7)。双侧胸膜光滑,未见胸水征象。右侧第4肋、左侧第7、8肋、胸5、7、8及腰1椎体多发骨质破坏灶密度较前明显增高。右肺上叶癌及远端阻塞性炎症减轻。双肺粟粒样结节略减少。纵隔、右肺门、锁骨上区多发淋巴结部分同前,部分缩小。双侧肋骨及胸腰椎转移较前密度增高,考虑好转表现。</t>
   </si>
   <si>
     <t>12MM×6MM</t>
@@ -2126,19 +2126,19 @@
     <t>双侧肋骨,胸腰椎</t>
   </si>
   <si>
-    <t>左乳MT综合治疗后：左侧胸壁(4-5前肋间)、左侧胸膜、前纵隔转移；双侧锁骨区淋巴结转移；多处骨转移；双侧胸腔积液；盆腔积液；左腋窝糖代谢增高，转移不除外，请结合临床；左肺下叶钙化灶；左侧附件区生理性改变可能，请结合临床随访；子宫多发肌瘤。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。右侧上颌窦内粘膜增厚影，考虑为慢性炎症。颈部PET/CT图像示双侧锁骨区见糖代谢异常增高的淋巴结，较大者大小约为9.2MM×6.7MM，最大SUV值为6.3；甲状腺等均未见明显糖代谢异常增高灶。胸部PET/CT图像示左乳MT术后；左侧腋窝局部呈轻度糖代谢异常增高，最大SUV值为2.0；右侧乳腺未见明显占位，右侧腋窝无肿大淋巴结。双侧胸腔积液；左侧胸膜不均匀增厚，伴糖代谢异常增高，最大SUV值为6.1；前纵隔软组织影增厚，伴糖代谢异常增高，最大SUV值为4.8；左侧胸壁4-5前肋间糖代谢异常增高，最大SUV值为3.8；左肺下叶见钙化灶。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，左叶见直径约为7.0MM囊性低密度灶；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；胆囊、胰、双肾、肾上腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET/CT图像示左侧附件区呈糖代谢增高，最大SUV值为4.7；子宫体积增大，见多发等密度突起；膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；双侧腹股沟处未见明显糖代谢异常增强。盆腔和双侧腹股沟无肿大淋巴结；盆腔积液。骨骼PET/CT图像示双侧胸肋多处、胸骨、脊柱多处、骨盆多处、双侧股骨上段见多发糖代谢异常增高灶，最大SUV值为7.9，部分区见骨质密度增高，其中右侧第4前肋骨皮质连续性中断。</t>
+    <t>左乳MT综合治疗后:左侧胸壁(4-5前肋间)、左侧胸膜、前纵隔转移;双侧锁骨区淋巴结转移;多处骨转移;双侧胸腔积液;盆腔积液;左腋窝糖代谢增高,转移不除外,请结合临床;左肺下叶钙化灶;左侧附件区生理性改变可能,请结合临床随访;子宫多发肌瘤。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼内肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。右侧上颌窦内粘膜增厚影,考虑为慢性炎症。颈部PET/CT图像示双侧锁骨区见糖代谢异常增高的淋巴结,较大者大小约为9.2MM×6.7MM,最大SUV值为6.3;甲状腺等均未见明显糖代谢异常增高灶。胸部PET/CT图像示左乳MT术后;左侧腋窝局部呈轻度糖代谢异常增高,最大SUV值为2.0;右侧乳腺未见明显占位,右侧腋窝无肿大淋巴结。双侧胸腔积液;左侧胸膜不均匀增厚,伴糖代谢异常增高,最大SUV值为6.1;前纵隔软组织影增厚,伴糖代谢异常增高,最大SUV值为4.8;左侧胸壁4-5前肋间糖代谢异常增高,最大SUV值为3.8;左肺下叶见钙化灶。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强;肠道呈线型生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整,各叶比例匀称,左叶见直径约为7.0MM囊性低密度灶;肝内外胆管无扩张;脾脏不大,密度均,未见明显占位;胆囊、胰、双肾、肾上腺无殊;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET/CT图像示左侧附件区呈糖代谢增高,最大SUV值为4.7;子宫体积增大,见多发等密度突起;膀胱内大量显像剂生理性积聚;肠道呈线型生理性糖代谢增强;双侧腹股沟处未见明显糖代谢异常增强。盆腔和双侧腹股沟无肿大淋巴结;盆腔积液。骨骼PET/CT图像示双侧胸肋多处、胸骨、脊柱多处、骨盆多处、双侧股骨上段见多发糖代谢异常增高灶,最大SUV值为7.9,部分区见骨质密度增高,其中右侧第4前肋骨皮质连续性中断。</t>
   </si>
   <si>
     <t>左侧胸壁(4-5前肋间),左侧胸膜,前纵隔,双侧锁骨区淋巴结,骨,左腋窝</t>
   </si>
   <si>
-    <t>左上肺癌术后放化疗后复查，与2016-05-05CT片对比：左上肺术后缺失，左肺上叶支气管残端见金属影，局部未见软组织影及强化灶。左残肺见斑片状及条索状病变，边界不清，病灶密度不均匀，较前未见明显变化。右肺上叶前段见一点状致密灶，同前相仿。右肺上叶后段见少许斑片状密度增高影，边界不清，密度不均匀，大致同前。右侧斜裂、水平裂各见一小结节，较大者直径约3MM，较前相仿。左肺下叶前内基底段(SE4，IM26)、右肺上叶后段(SE4，IM19)各见一结节，较大者直径约4MM，边界清晰。双侧锁骨上窝、右上气管旁、隆突下及右肺门见数个淋巴结，边界欠清，较大者短径约10MM，增强扫描中度强化，较前相仿。左侧胸膜不均匀明显增厚。双侧胸腔未见积液。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。肝S4见一稍低密度区，大小约为13MM×12MM，边界尚清，密度尚均匀，轻度强化，较前缩小。肝S4、5、8见多个囊性灶，边界清，较大者约10MM×6MM，未见强化，大致同前。肝内外胆管、胆总管及胆囊未见异常。肝门区、门静脉所见正常。胃左、腹腔干周围、腹主动脉旁、肠系膜区见多发淋巴结，边界欠清，部分互相融合，较大者大小约22MM×17MM，增强扫描不均匀轻中度强化，部分淋巴结内见坏死灶，包绕腹腔干及肠系膜上动脉，较前未见明显变化。左侧肾上腺见多发结节，最大者约19MM×15MM，增强扫描呈不均匀强化。双肾及右侧肾上腺未见异常。脾及胰腺大小、形态正常，密度均匀。膀胱充盈良好，境界清楚。精囊大小、形态未见异常，密度均匀，膀胱精囊角存在。前列腺大小、形态未见异常，密度欠均匀，内见多发斑点状致密影。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。左第6后肋骨术后改变；右侧坐骨见一类圆形低密度影，直径约15MM，边界清，未见硬化边；第1、2骶椎右侧块见溶骨性骨质破坏，周围见软组织肿块影，增强扫描呈明显强化，余所见骨质未见明显破坏征象。左上肺癌术后放化疗后复查，与2016-05-05CT片对比：左上肺术后缺失，左残肺条索影及斑片灶，大致同前，考虑放射性肺炎。右肺上叶后段斑片影，考虑炎性改变，大致同前。左肺下叶前内基底段、右肺上叶后段结节，考虑转移瘤可能性大，右上肺叶结节为新增病灶。右侧斜裂、水平裂小结节，较前未见明显变化。左侧胸膜增厚，考虑种植，大致同前。双侧锁骨上、纵隔及右肺门多发淋巴结，较前未见明显变化。肝S4结节，较前缩小，考虑转移瘤。肝囊肿。左侧肾上腺多发转移瘤。腹腔及腹膜后多发淋巴结，部分肿大，考虑转移，较前未见明显变化。右侧坐骨、第1、2骶椎右侧块骨质破坏，考虑转移瘤。</t>
+    <t>左上肺癌术后放化疗后复查,与2016-05-05CT片对比:左上肺术后缺失,左肺上叶支气管残端见金属影,局部未见软组织影及强化灶。左残肺见斑片状及条索状病变,边界不清,病灶密度不均匀,较前未见明显变化。右肺上叶前段见一点状致密灶,同前相仿。右肺上叶后段见少许斑片状密度增高影,边界不清,密度不均匀,大致同前。右侧斜裂、水平裂各见一小结节,较大者直径约3MM,较前相仿。左肺下叶前内基底段(SE4,IM26)、右肺上叶后段(SE4,IM19)各见一结节,较大者直径约4MM,边界清晰。双侧锁骨上窝、右上气管旁、隆突下及右肺门见数个淋巴结,边界欠清,较大者短径约10MM,增强扫描中度强化,较前相仿。左侧胸膜不均匀明显增厚。双侧胸腔未见积液。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度欠均匀。肝S4见一稍低密度区,大小约为13MM×12MM,边界尚清,密度尚均匀,轻度强化,较前缩小。肝S4、5、8见多个囊性灶,边界清,较大者约10MM×6MM,未见强化,大致同前。肝内外胆管、胆总管及胆囊未见异常。肝门区、门静脉所见正常。胃左、腹腔干周围、腹主动脉旁、肠系膜区见多发淋巴结,边界欠清,部分互相融合,较大者大小约22MM×17MM,增强扫描不均匀轻中度强化,部分淋巴结内见坏死灶,包绕腹腔干及肠系膜上动脉,较前未见明显变化。左侧肾上腺见多发结节,最大者约19MM×15MM,增强扫描呈不均匀强化。双肾及右侧肾上腺未见异常。脾及胰腺大小、形态正常,密度均匀。膀胱充盈良好,境界清楚。精囊大小、形态未见异常,密度均匀,膀胱精囊角存在。前列腺大小、形态未见异常,密度欠均匀,内见多发斑点状致密影。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。左第6后肋骨术后改变;右侧坐骨见一类圆形低密度影,直径约15MM,边界清,未见硬化边;第1、2骶椎右侧块见溶骨性骨质破坏,周围见软组织肿块影,增强扫描呈明显强化,余所见骨质未见明显破坏征象。左上肺癌术后放化疗后复查,与2016-05-05CT片对比:左上肺术后缺失,左残肺条索影及斑片灶,大致同前,考虑放射性肺炎。右肺上叶后段斑片影,考虑炎性改变,大致同前。左肺下叶前内基底段、右肺上叶后段结节,考虑转移瘤可能性大,右上肺叶结节为新增病灶。右侧斜裂、水平裂小结节,较前未见明显变化。左侧胸膜增厚,考虑种植,大致同前。双侧锁骨上、纵隔及右肺门多发淋巴结,较前未见明显变化。肝S4结节,较前缩小,考虑转移瘤。肝囊肿。左侧肾上腺多发转移瘤。腹腔及腹膜后多发淋巴结,部分肿大,考虑转移,较前未见明显变化。右侧坐骨、第1、2骶椎右侧块骨质破坏,考虑转移瘤。</t>
   </si>
   <si>
     <t>肝S4,左侧肾上腺,右侧坐骨,左肺下叶前内基底段,右肺上叶后段,腹腔及腹膜后多发淋巴结,第1、2骶椎右侧块</t>
   </si>
   <si>
-    <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑未见明显糖代谢异常。CT平扫示脑实质未见异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶、鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部及锁骨区散在小淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET图像示右乳MT术后，右乳缺如，左乳见点状致密影；双肺野、肺门、纵隔、胸壁、腋窝等均未见明显糖代谢异常增高灶。CT平扫所示双肺纹理清晰，左肺上叶透亮度不均匀，左肺下叶胸膜下见囊状透亮影；余肺未见明显异常占位；所示各级支气管腔通畅；纵隔无明显肿大淋巴结，双肺门影不大；双侧胸膜无增厚；双侧胸腔无积液；心脏无明显增大；双侧腋窝无明显肿大淋巴结。腹部PET/CT图像示胃MT根治术后，术区见金属缝线影，吻合口软组织影局部略增厚，伴糖代谢增高，最大SUV值为5.5，延迟1.5小时后最大SUV值为4.5；腹腔干及主动脉周围、左侧后腹膜脂肪间隙模糊、密度增高，内见多发早期及延迟期均无明显糖代谢增高的不规则结节影，较大者大小约16.5MM×10.6MM；左侧输尿管管壁局部粘连增厚，早期及延迟期均无明显糖代谢异常增高；上段输尿管及肾盂扩张，左肾周筋膜增厚；左肾上腺增粗伴糖代谢轻度增高，早期最大SUV值约3.2，延迟1.5小时后降至2.3；肝内见数枚无糖代谢增高的低密度灶，较大者大小约18.8MM×15.4MM；肠道呈线型生理性糖代谢增强；胆囊、胰、脾、右肾上腺、肾及输尿管及大血管处未见明显糖代谢异常增高；腹腔无积液；正中腹壁皮下脂肪层内可见腹腔肠管疝入。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈，壁光滑无增厚；子宫肌层密度欠均，似见多发结节影，较大者直径约24.9MM；双附件区未见明显占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示全身骨骼未见明显骨质破坏吸收征象。右乳MT及胃MT综合治疗后：胃吻合口粘膜略增厚伴糖代谢增高，考虑为炎性病变可能，请随访；腹膜后多发无明显糖代谢增高的结节影伴纤维化改变，左肾上腺增粗伴糖代谢轻度增高，均考虑转移不除外；肝多发囊肿；左输尿管粘连，左肾轻度积水；子宫肌层内无明显糖代谢的结节，考虑为良性病变(肌瘤)可能，请结合妇科超声检查；腹壁切口疝或白线疝；左乳小钙化灶。</t>
+    <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑未见明显糖代谢异常。CT平扫示脑实质未见异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶、鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部及锁骨区散在小淋巴结;口咽、喉咽部无占位;甲状腺无肿大,未见明显占位。胸部PET图像示右乳MT术后,右乳缺如,左乳见点状致密影;双肺野、肺门、纵隔、胸壁、腋窝等均未见明显糖代谢异常增高灶。CT平扫所示双肺纹理清晰,左肺上叶透亮度不均匀,左肺下叶胸膜下见囊状透亮影;余肺未见明显异常占位;所示各级支气管腔通畅;纵隔无明显肿大淋巴结,双肺门影不大;双侧胸膜无增厚;双侧胸腔无积液;心脏无明显增大;双侧腋窝无明显肿大淋巴结。腹部PET/CT图像示胃MT根治术后,术区见金属缝线影,吻合口软组织影局部略增厚,伴糖代谢增高,最大SUV值为5.5,延迟1.5小时后最大SUV值为4.5;腹腔干及主动脉周围、左侧后腹膜脂肪间隙模糊、密度增高,内见多发早期及延迟期均无明显糖代谢增高的不规则结节影,较大者大小约16.5MM×10.6MM;左侧输尿管管壁局部粘连增厚,早期及延迟期均无明显糖代谢异常增高;上段输尿管及肾盂扩张,左肾周筋膜增厚;左肾上腺增粗伴糖代谢轻度增高,早期最大SUV值约3.2,延迟1.5小时后降至2.3;肝内见数枚无糖代谢增高的低密度灶,较大者大小约18.8MM×15.4MM;肠道呈线型生理性糖代谢增强;胆囊、胰、脾、右肾上腺、肾及输尿管及大血管处未见明显糖代谢异常增高;腹腔无积液;正中腹壁皮下脂肪层内可见腹腔肠管疝入。盆部PET图像示膀胱内大量放射性生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈,壁光滑无增厚;子宫肌层密度欠均,似见多发结节影,较大者直径约24.9MM;双附件区未见明显占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗示全身骨骼未见明显骨质破坏吸收征象。右乳MT及胃MT综合治疗后:胃吻合口粘膜略增厚伴糖代谢增高,考虑为炎性病变可能,请随访;腹膜后多发无明显糖代谢增高的结节影伴纤维化改变,左肾上腺增粗伴糖代谢轻度增高,均考虑转移不除外;肝多发囊肿;左输尿管粘连,左肾轻度积水;子宫肌层内无明显糖代谢的结节,考虑为良性病变(肌瘤)可能,请结合妇科超声检查;腹壁切口疝或白线疝;左乳小钙化灶。</t>
   </si>
   <si>
     <t>右乳,胃</t>
@@ -2147,13 +2147,13 @@
     <t>左肾上腺,腹膜后</t>
   </si>
   <si>
-    <t>1.结合临床，考虑右肺癌；右肺门及纵隔、右锁上淋巴结转移；肝转移；骨转移2.右侧腋窝淋巴结肿大3.肝小囊肿4.双肾囊肿5.胰腺小囊肿6.双侧胸膜增厚7.右侧肺动脉栓塞右肺上叶纵隔旁见一小结节灶，边缘分叶、毛糙，与邻近胸膜可见牵拉，截面积约1.5CM×0.6CM；增强扫描呈不均匀强化。双侧下叶见少许片絮状及条索状密度增高影。右肺门、纵隔内2R、3A、4R、4L及右锁上见多发肿大淋巴结，大者短径约1.2CM，增强呈不均匀强化。右侧腋窝见增大淋巴结，短径约0.8CM。双侧胸膜示轻度增厚。右下肺动脉及其分支内可见栓子形成。肝实质内见多发低密度灶，边缘模糊，大者直径约2.3CM，呈边缘强化。另于肝实质内见小低密度灶，边界较清，直径不足0.5CM。胆囊充盈可，壁不厚。双肾见囊性密度灶，边界较清，直径约0.5CM。胰腺内见直径不足0.5CM的小低密度灶，边界清。脾、双侧肾上腺未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。左侧肩胛骨、双侧多发肋骨、多发胸椎椎体及附件示溶骨性骨质改变，部分骨质周围可见软组织肿块形成，呈不均匀强化。</t>
+    <t>1.结合临床,考虑右肺癌;右肺门及纵隔、右锁上淋巴结转移;肝转移;骨转移2.右侧腋窝淋巴结肿大3.肝小囊肿4.双肾囊肿5.胰腺小囊肿6.双侧胸膜增厚7.右侧肺动脉栓塞右肺上叶纵隔旁见一小结节灶,边缘分叶、毛糙,与邻近胸膜可见牵拉,截面积约1.5CM×0.6CM;增强扫描呈不均匀强化。双侧下叶见少许片絮状及条索状密度增高影。右肺门、纵隔内2R、3A、4R、4L及右锁上见多发肿大淋巴结,大者短径约1.2CM,增强呈不均匀强化。右侧腋窝见增大淋巴结,短径约0.8CM。双侧胸膜示轻度增厚。右下肺动脉及其分支内可见栓子形成。肝实质内见多发低密度灶,边缘模糊,大者直径约2.3CM,呈边缘强化。另于肝实质内见小低密度灶,边界较清,直径不足0.5CM。胆囊充盈可,壁不厚。双肾见囊性密度灶,边界较清,直径约0.5CM。胰腺内见直径不足0.5CM的小低密度灶,边界清。脾、双侧肾上腺未见明确异常。腹腔及腹膜后未见明确肿大淋巴结。左侧肩胛骨、双侧多发肋骨、多发胸椎椎体及附件示溶骨性骨质改变,部分骨质周围可见软组织肿块形成,呈不均匀强化。</t>
   </si>
   <si>
     <t>右肺门及纵隔,右锁上淋巴结,肝,骨</t>
   </si>
   <si>
-    <t>右肺下叶见一大小约为7.1CM×7.8CM的软组织结节灶，边缘分叶，与胸膜相连，增强后呈中等强化。余右肺野可见斑片状条索状密度增高影，边缘模糊。右肺门、隆突下、血管前间隙可见多发融合成团的肿大淋巴结，大者短径约2.3CM，向内侵及心包，远端肺野可见斑片状高密度影。右侧胸腔及心包腔内见少量积液。肝实质密度均质，胆囊胰腺脾未见异常。左肾实质内可见一脂肪密度影，直径约0.9CM，边界清，无强化。另左肾可见一囊性密度灶，直径约0.6CM。右肾实质内混杂密度灶，最大截面约1.5CM×1.9CM，可见少部分脂肪密度，增强扫描呈快进快出表现。腹腔及腹膜后未见肿大淋巴结。肠系膜区见一直径约1.9CM的软组织密度灶。右侧颌下及右侧颈动脉鞘区，颏下见肿大淋巴结，大者短径约3.0CM，各咽壁不厚，余双侧颈部未见肿大淋巴结影。腮腺及双侧甲状腺未见异常。T8椎体内局部骨质稀疏。1.结合临床，右肺癌治疗后复发，伴右肺门、纵隔淋巴结转移，并考虑心包受侵；颈部淋巴结转移，较前2016-07-11进展；腹腔转移；右肺炎症，较前变化不著2.右侧胸腔及心包少量积液3.左肾血管平滑肌脂肪瘤，左肾囊肿；右肾占位，考虑血管平滑肌脂肪瘤可能性大，变化不著4.T8椎体局部骨质稀疏，请结合骨扫描</t>
+    <t>右肺下叶见一大小约为7.1CM×7.8CM的软组织结节灶,边缘分叶,与胸膜相连,增强后呈中等强化。余右肺野可见斑片状条索状密度增高影,边缘模糊。右肺门、隆突下、血管前间隙可见多发融合成团的肿大淋巴结,大者短径约2.3CM,向内侵及心包,远端肺野可见斑片状高密度影。右侧胸腔及心包腔内见少量积液。肝实质密度均质,胆囊胰腺脾未见异常。左肾实质内可见一脂肪密度影,直径约0.9CM,边界清,无强化。另左肾可见一囊性密度灶,直径约0.6CM。右肾实质内混杂密度灶,最大截面约1.5CM×1.9CM,可见少部分脂肪密度,增强扫描呈快进快出表现。腹腔及腹膜后未见肿大淋巴结。肠系膜区见一直径约1.9CM的软组织密度灶。右侧颌下及右侧颈动脉鞘区,颏下见肿大淋巴结,大者短径约3.0CM,各咽壁不厚,余双侧颈部未见肿大淋巴结影。腮腺及双侧甲状腺未见异常。T8椎体内局部骨质稀疏。1.结合临床,右肺癌治疗后复发,伴右肺门、纵隔淋巴结转移,并考虑心包受侵;颈部淋巴结转移,较前2016-07-11进展;腹腔转移;右肺炎症,较前变化不著2.右侧胸腔及心包少量积液3.左肾血管平滑肌脂肪瘤,左肾囊肿;右肾占位,考虑血管平滑肌脂肪瘤可能性大,变化不著4.T8椎体局部骨质稀疏,请结合骨扫描</t>
   </si>
   <si>
     <t>7.1CM×7.8CM</t>
@@ -2162,7 +2162,7 @@
     <t>腹腔,右肺门,纵隔淋巴结,颈部淋巴结</t>
   </si>
   <si>
-    <t>1.结合临床，鼻咽癌伴外侵，双颈部、锁上、纵隔及右腋窝多发淋巴结转移；双颈部水肿，右侧较著2.右乳皮肤增厚3.甲状腺低密度影，建议观察4.心包积液鼻咽顶后壁增厚，向前堵塞后鼻孔，向上侵及鼻腔、双侧筛窦、上颌窦，双侧额窦内示低密度影，双侧翼腭窝显示可，颅底骨质未见明显破坏征象，增强扫描病变呈较显著强化。双颈部、锁上及纵隔、右腋窝示多发肿大淋巴结，相互融合，大者短径约3.2CM，可见强化。甲状腺内略示低密度影，边缘略模糊。喉及下咽壁不厚。右颈部皮肤增厚，双颈部皮下脂肪间隙密度增高，可见多发高密度条索影。右乳皮肤增厚。心包内示环形液体密度影。</t>
+    <t>1.结合临床,鼻咽癌伴外侵,双颈部、锁上、纵隔及右腋窝多发淋巴结转移;双颈部水肿,右侧较著2.右乳皮肤增厚3.甲状腺低密度影,建议观察4.心包积液鼻咽顶后壁增厚,向前堵塞后鼻孔,向上侵及鼻腔、双侧筛窦、上颌窦,双侧额窦内示低密度影,双侧翼腭窝显示可,颅底骨质未见明显破坏征象,增强扫描病变呈较显著强化。双颈部、锁上及纵隔、右腋窝示多发肿大淋巴结,相互融合,大者短径约3.2CM,可见强化。甲状腺内略示低密度影,边缘略模糊。喉及下咽壁不厚。右颈部皮肤增厚,双颈部皮下脂肪间隙密度增高,可见多发高密度条索影。右乳皮肤增厚。心包内示环形液体密度影。</t>
   </si>
   <si>
     <t>鼻咽</t>
@@ -2171,19 +2171,19 @@
     <t>双颈部,锁上,纵隔及右腋窝多发淋巴结</t>
   </si>
   <si>
-    <t>直肠与乙状结肠交界处及其下方直肠壁略示增厚，相应节段肠腔略狭窄，其外膜面略示毛糙，肠管周围脂肪间隙尚清晰。前列腺及双侧精囊腺未见明确异常。膀胱充盈可，壁不厚。盆腔内及双侧腹股沟未见明显增大淋巴结。左肺上叶及下叶背段示斑片状密度增高影，其内见充气支气管征。右肺下叶可见斑片状、条片状密度增高影。右肺中叶示小类结节灶。纵隔内见多枚小淋巴结影，部分钙化，双侧胸膜未见增厚，双侧胸腔未见液性密度影。纵隔内2R区示一结节灶，短径约1.4CM。肝右叶实质内示低密度肿块，形态不规则，大者位于上段，截面约1.9CM×1.8CM，边缘模糊，增强后其内示不均质点状强化。胆囊充盈可，壁不厚。胰、脾未见异常。双侧肾上腺形态欠自然，右侧肾上腺体部可见结节灶，短径约1.6CM。双肾密度欠均，局部示片状低密度区。腹膜后未见显著增大淋巴结。鼻咽、口咽、喉形态可，壁不厚。甲状腺右叶示类圆形低密度灶。双颈部未见明确肿大淋巴结。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。骨窗示：胸骨、部分肋骨、多发椎骨及双侧髂骨骨质密度增高。1.结合临床，直肠癌治疗后，较前(2015-3-24)变化不著。2.结合临床，左肺癌治疗后，病变显示不清；左肺炎症，较前变化不著；右肺下叶炎症，较前示明显；右肺小类结节灶，建议观察；肝转移，变化不著；纵隔淋巴结转移，较前增大；双侧肾上腺结节灶，考虑转移，较前增大。3.结合临床，多发骨转移治疗后，变化不著。4.双肾低密度灶，变化不著。5.颅脑CT扫描未见明显异常。6.甲状腺右叶低密度灶。</t>
+    <t>直肠与乙状结肠交界处及其下方直肠壁略示增厚,相应节段肠腔略狭窄,其外膜面略示毛糙,肠管周围脂肪间隙尚清晰。前列腺及双侧精囊腺未见明确异常。膀胱充盈可,壁不厚。盆腔内及双侧腹股沟未见明显增大淋巴结。左肺上叶及下叶背段示斑片状密度增高影,其内见充气支气管征。右肺下叶可见斑片状、条片状密度增高影。右肺中叶示小类结节灶。纵隔内见多枚小淋巴结影,部分钙化,双侧胸膜未见增厚,双侧胸腔未见液性密度影。纵隔内2R区示一结节灶,短径约1.4CM。肝右叶实质内示低密度肿块,形态不规则,大者位于上段,截面约1.9CM×1.8CM,边缘模糊,增强后其内示不均质点状强化。胆囊充盈可,壁不厚。胰、脾未见异常。双侧肾上腺形态欠自然,右侧肾上腺体部可见结节灶,短径约1.6CM。双肾密度欠均,局部示片状低密度区。腹膜后未见显著增大淋巴结。鼻咽、口咽、喉形态可,壁不厚。甲状腺右叶示类圆形低密度灶。双颈部未见明确肿大淋巴结。脑质内未见明确异常密度灶。脑室系统及脑沟、裂、池未见异常。中线结构无移位。骨窗示:胸骨、部分肋骨、多发椎骨及双侧髂骨骨质密度增高。1.结合临床,直肠癌治疗后,较前(2015-3-24)变化不著。2.结合临床,左肺癌治疗后,病变显示不清;左肺炎症,较前变化不著;右肺下叶炎症,较前示明显;右肺小类结节灶,建议观察;肝转移,变化不著;纵隔淋巴结转移,较前增大;双侧肾上腺结节灶,考虑转移,较前增大。3.结合临床,多发骨转移治疗后,变化不著。4.双肾低密度灶,变化不著。5.颅脑CT扫描未见明显异常。6.甲状腺右叶低密度灶。</t>
   </si>
   <si>
     <t>肝,双侧肾上腺,骨,纵隔淋巴结</t>
   </si>
   <si>
-    <t>左上肺癌术后化疗后复查，与2017-1-9片对比：左残肺及右肺多发小结节，考虑转移瘤，部分较前稍增大。右中肺及左肺少许纤维增殖灶，较前未见明显变化。纵隔及双肺门多发淋巴结，较前未见明显变化。左颈IV、VB区肿大淋巴结，考虑转移，较前未见明显变化。肝内多发囊肿，较前未见明显变化。右肾囊肿。左肾轴旋转不良。左侧肾上腺增粗，考虑增生可能，同前相仿。甲状腺病灶，考虑结节性甲状腺肿。左上肺癌术后化疗后：左上肺术后缺失，术区支气管残端见致密金属影，局部未见明确结节肿物影。左残肺及右肺见多发小结节，部分边界欠清，大者大小约20MM×12MM，增强扫描可见强化。右中肺内侧段及左残肺少许条索影，边界清。气管及余支气管分支通畅。双上及左下气管旁、隆突下、双肺门见数个淋巴结，部分边界不清，大者短径约10MM，增强后呈明显不均匀强化。左侧胸腔见少量积液，左侧胸膜稍增厚。右侧未见胸腔积液及胸膜增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝内见数个类圆形低密度区，边界清，最大者位于S5，约为50MM×46MM，未见强化。肝内外胆管、胆囊未见异常。肝门区、门静脉未见异常。脾及胰腺大小、形态未见异常，密度均匀。右肾见数个囊性灶，最大约52MM×46MM，边界清，增强扫描未见强化。左肾轴外翻。左侧肾上腺弥漫性稍增粗，密度均匀。右侧肾上腺未见异常。腹主动脉旁未见肿大淋巴结。双颈结构清晰，各血管充盈良好。甲状腺双叶见多发结节，大者直径6MM，轻度强化。双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。双侧颌下腺、腮腺未见异常。左颈IV、VB区见多发肿大淋巴结，较大短径约16MM，边界欠清，明显强化。所见骨质未见明显破坏征象。</t>
+    <t>左上肺癌术后化疗后复查,与2017-1-9片对比:左残肺及右肺多发小结节,考虑转移瘤,部分较前稍增大。右中肺及左肺少许纤维增殖灶,较前未见明显变化。纵隔及双肺门多发淋巴结,较前未见明显变化。左颈IV、VB区肿大淋巴结,考虑转移,较前未见明显变化。肝内多发囊肿,较前未见明显变化。右肾囊肿。左肾轴旋转不良。左侧肾上腺增粗,考虑增生可能,同前相仿。甲状腺病灶,考虑结节性甲状腺肿。左上肺癌术后化疗后:左上肺术后缺失,术区支气管残端见致密金属影,局部未见明确结节肿物影。左残肺及右肺见多发小结节,部分边界欠清,大者大小约20MM×12MM,增强扫描可见强化。右中肺内侧段及左残肺少许条索影,边界清。气管及余支气管分支通畅。双上及左下气管旁、隆突下、双肺门见数个淋巴结,部分边界不清,大者短径约10MM,增强后呈明显不均匀强化。左侧胸腔见少量积液,左侧胸膜稍增厚。右侧未见胸腔积液及胸膜增厚。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度不均匀,肝内见数个类圆形低密度区,边界清,最大者位于S5,约为50MM×46MM,未见强化。肝内外胆管、胆囊未见异常。肝门区、门静脉未见异常。脾及胰腺大小、形态未见异常,密度均匀。右肾见数个囊性灶,最大约52MM×46MM,边界清,增强扫描未见强化。左肾轴外翻。左侧肾上腺弥漫性稍增粗,密度均匀。右侧肾上腺未见异常。腹主动脉旁未见肿大淋巴结。双颈结构清晰,各血管充盈良好。甲状腺双叶见多发结节,大者直径6MM,轻度强化。双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。双侧颌下腺、腮腺未见异常。左颈IV、VB区见多发肿大淋巴结,较大短径约16MM,边界欠清,明显强化。所见骨质未见明显破坏征象。</t>
   </si>
   <si>
     <t>右肺,左颈IV,VB区肿大淋巴结</t>
   </si>
   <si>
-    <t>左侧附件区见一巨大软组织密度肿块，大小约14.0CM×11.5CM，呈囊实性，实性成分可见强化，右侧附件亦示饱满，呈实性。肿块与子宫分界不清。腹盆腔内见液体密度影。腹膜、大网膜及肠系膜均增厚，并可见多发结节灶。膈脚后、腹腔腹膜后及盆腔内可见多发淋巴结。胆囊内可见结节状钙化灶。左肾见囊性结节灶，边界清。左侧乳腺根治术后，术区胸壁未见增厚及异常强化。左侧腋窝未见肿大淋巴结。右侧乳腺内可见点状钙化灶，边界清。右侧腋窝、双侧内乳、肺门及纵隔内未见肿大淋巴结。左肺野见少许条索影。L4、5椎体内骨质密度增高。1.盆腔占位，考虑卵巢癌并大网膜、肠系膜及腹膜后多发转移；腹腔腹膜后、盆腔及膈脚后淋巴结转移2.左侧乳腺术后改变3.右侧乳腺内钙化灶，考虑良性，请结合钼靶检查4.腹盆腔积液5.左肾囊肿6.胆囊结石7.左肺纤维灶8.部分腰椎椎体骨质密度增高，请结合其他检查</t>
+    <t>左侧附件区见一巨大软组织密度肿块,大小约14.0CM×11.5CM,呈囊实性,实性成分可见强化,右侧附件亦示饱满,呈实性。肿块与子宫分界不清。腹盆腔内见液体密度影。腹膜、大网膜及肠系膜均增厚,并可见多发结节灶。膈脚后、腹腔腹膜后及盆腔内可见多发淋巴结。胆囊内可见结节状钙化灶。左肾见囊性结节灶,边界清。左侧乳腺根治术后,术区胸壁未见增厚及异常强化。左侧腋窝未见肿大淋巴结。右侧乳腺内可见点状钙化灶,边界清。右侧腋窝、双侧内乳、肺门及纵隔内未见肿大淋巴结。左肺野见少许条索影。L4、5椎体内骨质密度增高。1.盆腔占位,考虑卵巢癌并大网膜、肠系膜及腹膜后多发转移;腹腔腹膜后、盆腔及膈脚后淋巴结转移2.左侧乳腺术后改变3.右侧乳腺内钙化灶,考虑良性,请结合钼靶检查4.腹盆腔积液5.左肾囊肿6.胆囊结石7.左肺纤维灶8.部分腰椎椎体骨质密度增高,请结合其他检查</t>
   </si>
   <si>
     <t>卵巢</t>
@@ -2195,19 +2195,19 @@
     <t>大网膜,肠系膜,腹膜后,腹腔腹膜后,盆腔,膈脚后淋巴结</t>
   </si>
   <si>
-    <t>左肺癌化疗后复查，与前片(2011.1.10)比较：左下肺可见软组织肿块，大小约21MM×22MM，边界不清楚，边缘毛糙，见浅分叶，增强扫描不均匀强化，较前稍缩小。左肺上叶散在斑片状、片状密度增高影，边界不清，内见支气管气象，部分病灶范围较前稍缩小。双肺内见多个结节及类结节影，直径约2MM~5MM，部分边界不清，较前未见明显变化。气管及支气管分支通畅，未见明显软组织肿块或受压变窄。右侧锁骨上、左侧肺门、右下气管旁、隆突下可见数个淋巴结，短径约5MM~11MM，边界欠清，较前未见明显变化。双侧胸腔未见积液，胸膜未见增厚。肝脏形态未见异常，轮廓光整，密度欠均匀，肝左外叶可见一囊性灶，大小约16MM×18MM，边界尚清，边缘光整，密度尚均匀，未见强化，较前未见明显变化。肝内外胆管未见扩张，胆囊内结石。肝门区及门静脉未见异常。脾大小未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。左肾可见一囊性灶，大小约11MM×12MM，右肾未见异常。双侧肾上腺未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。T4椎体、T11椎体横突可见片状致密影，椎旁未见明显软组织肿物影。左肺癌化疗后，较前片(2011.1.10)比较：左下肺软组织肿块，较前稍缩小。双肺内小结节，考虑转移瘤，较前无明显变化。左肺门、纵隔淋巴结，较前未见明显变化。左肺片状影，部分范围较前缩小，考虑炎症。肝囊肿、肾囊肿。胆结石。T4椎体、T11椎体横突骨质改变，考虑转移可能性大。</t>
+    <t>左肺癌化疗后复查,与前片(2011.1.10)比较:左下肺可见软组织肿块,大小约21MM×22MM,边界不清楚,边缘毛糙,见浅分叶,增强扫描不均匀强化,较前稍缩小。左肺上叶散在斑片状、片状密度增高影,边界不清,内见支气管气象,部分病灶范围较前稍缩小。双肺内见多个结节及类结节影,直径约2MM~5MM,部分边界不清,较前未见明显变化。气管及支气管分支通畅,未见明显软组织肿块或受压变窄。右侧锁骨上、左侧肺门、右下气管旁、隆突下可见数个淋巴结,短径约5MM~11MM,边界欠清,较前未见明显变化。双侧胸腔未见积液,胸膜未见增厚。肝脏形态未见异常,轮廓光整,密度欠均匀,肝左外叶可见一囊性灶,大小约16MM×18MM,边界尚清,边缘光整,密度尚均匀,未见强化,较前未见明显变化。肝内外胆管未见扩张,胆囊内结石。肝门区及门静脉未见异常。脾大小未见异常,密度均匀。胰腺大小、形态未见异常,密度均匀。左肾可见一囊性灶,大小约11MM×12MM,右肾未见异常。双侧肾上腺未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。T4椎体、T11椎体横突可见片状致密影,椎旁未见明显软组织肿物影。左肺癌化疗后,较前片(2011.1.10)比较:左下肺软组织肿块,较前稍缩小。双肺内小结节,考虑转移瘤,较前无明显变化。左肺门、纵隔淋巴结,较前未见明显变化。左肺片状影,部分范围较前缩小,考虑炎症。肝囊肿、肾囊肿。胆结石。T4椎体、T11椎体横突骨质改变,考虑转移可能性大。</t>
   </si>
   <si>
     <t>双肺,T4椎体,T11椎体横突</t>
   </si>
   <si>
-    <t>右侧乳腺癌化疗后，与2012-3-21比较，右侧乳腺病变较前缩小。右侧腋窝肿大淋巴结，考虑转移，较前缩小好转。胸骨右缘(SE9、IM14)小结节，较前缩小，可疑内乳淋巴结。双侧乳腺增生。右侧乳腺癌化疗后，与2012-3-21比较：右侧腋下肿大淋巴结，大小约6MM×7MM~14MM×15MM，边界不清，轮廓欠光整，增强后强化明显，与前片比较病灶缩小。胸骨右缘(SE9、IM14)见一小结节，大小约4MM×3MM，较前缩小。双侧乳腺大小及形态基本对称，双乳皮肤未见增厚，双侧乳头未见凹陷。右乳内上象限见一结节灶，边界不清，轮廓欠光整，与周围腺体分界不清，范围约13MM×14MM，边缘见毛刺，T1WI低信号，T2WI呈混杂低高信号，增强扫描明显不均匀强化，其时间-信号强度曲线为“速升平台”型，病灶与乳腺后方浅筋膜深、浅层粘连，与胸大肌界限欠清，与前片比较病灶范围缩小。左乳内上象限见一类圆形异常信号区，T1WI及T2WI扫描上均呈无信号，较前未见明显变化。双侧乳腺腺体较致密，增强后呈小结节状、斑片状强化。</t>
+    <t>右侧乳腺癌化疗后,与2012-3-21比较,右侧乳腺病变较前缩小。右侧腋窝肿大淋巴结,考虑转移,较前缩小好转。胸骨右缘(SE9、IM14)小结节,较前缩小,可疑内乳淋巴结。双侧乳腺增生。右侧乳腺癌化疗后,与2012-3-21比较:右侧腋下肿大淋巴结,大小约6MM×7MM~14MM×15MM,边界不清,轮廓欠光整,增强后强化明显,与前片比较病灶缩小。胸骨右缘(SE9、IM14)见一小结节,大小约4MM×3MM,较前缩小。双侧乳腺大小及形态基本对称,双乳皮肤未见增厚,双侧乳头未见凹陷。右乳内上象限见一结节灶,边界不清,轮廓欠光整,与周围腺体分界不清,范围约13MM×14MM,边缘见毛刺,T1WI低信号,T2WI呈混杂低高信号,增强扫描明显不均匀强化,其时间-信号强度曲线为“速升平台”型,病灶与乳腺后方浅筋膜深、浅层粘连,与胸大肌界限欠清,与前片比较病灶范围缩小。左乳内上象限见一类圆形异常信号区,T1WI及T2WI扫描上均呈无信号,较前未见明显变化。双侧乳腺腺体较致密,增强后呈小结节状、斑片状强化。</t>
   </si>
   <si>
     <t>右侧腋窝肿大淋巴结</t>
   </si>
   <si>
-    <t>1、右肺门区高代谢肿块，伴右上肺阻塞性炎症，符合中心型肺癌。病变侵及右肺门、纵隔2R、4R、7区。双锁骨区、纵隔2R/L、3A、3P、4R/L、7区多发淋巴结转移。右侧胸腔少量积液。2、脑部未见明显异常代谢征象。双上颌窦炎症。椎体前缘轻度骨质增生。空腹6小时以上，静脉注射显像剂，平静休息60MMIN后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：右肺门区见一软组织肿块，包绕右主支气管及右肺上叶支气管并致其狭窄，侵及右肺门、纵隔2R、4R、7区，约8.1CM×7.4CM，放射性分布异常浓聚，最大SUV7.74。右上肺见阻塞性斑片影。左上肺及双下肺见小结节，未见放射性浓聚。右侧叶间胸膜增厚，右侧胸腔少量积液。左侧胸膜无增厚，左侧胸水征阴性。双锁骨区、纵隔2R/L、3A、3P、4R/L、7区见肿大淋巴结，均伴异常浓聚，最大SUV3.4-7.37，最大者位于4R区，约3.1CM×3.1CM，中心部见水样密度。左肺门未见肿大或异常浓聚淋巴结。心肌显影浅淡。大脑形态如常，皮层各叶放射性分布均匀。皮层下各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，两侧小脑对称。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。双上颌窦内见少许软组织影，未见放射性浓聚。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。双颈部未见明显异常淋巴结浓聚。胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常，膀胱壁无增厚。前列腺大小正常，放射性分布大致正常。两侧腹股沟无异常淋巴结显示。视野内轴心骨未见异常放射性浓聚。椎体前缘轻度骨质增生。视野内皮肤及软组织内未见异常放射性摄取。</t>
+    <t>1、右肺门区高代谢肿块,伴右上肺阻塞性炎症,符合中心型肺癌。病变侵及右肺门、纵隔2R、4R、7区。双锁骨区、纵隔2R/L、3A、3P、4R/L、7区多发淋巴结转移。右侧胸腔少量积液。2、脑部未见明显异常代谢征象。双上颌窦炎症。椎体前缘轻度骨质增生。空腹6小时以上,静脉注射显像剂,平静休息60MMIN后行全身PET及CT断层显像,PET图像经衰减校正及重建后,将PET及CT图像行多平面、多幅显示:右肺门区见一软组织肿块,包绕右主支气管及右肺上叶支气管并致其狭窄,侵及右肺门、纵隔2R、4R、7区,约8.1CM×7.4CM,放射性分布异常浓聚,最大SUV7.74。右上肺见阻塞性斑片影。左上肺及双下肺见小结节,未见放射性浓聚。右侧叶间胸膜增厚,右侧胸腔少量积液。左侧胸膜无增厚,左侧胸水征阴性。双锁骨区、纵隔2R/L、3A、3P、4R/L、7区见肿大淋巴结,均伴异常浓聚,最大SUV3.4-7.37,最大者位于4R区,约3.1CM×3.1CM,中心部见水样密度。左肺门未见肿大或异常浓聚淋巴结。心肌显影浅淡。大脑形态如常,皮层各叶放射性分布均匀。皮层下各神经核团显影清晰,放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深,白质未见明显低密度影,中线无移位。脑室无扩大,基底节区显示对称。小脑显影如常,两侧小脑对称。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。双上颌窦内见少许软组织影,未见放射性浓聚。甲状腺两叶不大,形态可,腺实质内未见异常放射性增高灶。双颈部未见明显异常淋巴结浓聚。胃充盈好,胃壁显影如常。肝脏形态可,轮廓光整,肝叶比例正常,肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常,密度均匀,胆囊壁无增厚。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常,膀胱壁无增厚。前列腺大小正常,放射性分布大致正常。两侧腹股沟无异常淋巴结显示。视野内轴心骨未见异常放射性浓聚。椎体前缘轻度骨质增生。视野内皮肤及软组织内未见异常放射性摄取。</t>
   </si>
   <si>
     <t>8.1CM×7.4CM</t>
@@ -2216,7 +2216,7 @@
     <t>双锁骨区,纵隔2R/L,3A,3P,4R/L,7区多发淋巴结</t>
   </si>
   <si>
-    <t>空腹6H以上，静脉注射18F-FDG，静息约60MMIN后行全身PET/CT断层显像+胸部CT增强，影像清晰。右侧顶枕交界处结节放射性分布浓密，SUV约7.4，大小约0.6CM×0.8CM，增强扫描明显强化，周围可见大片低密度水肿影放射性分布稀疏，余双侧脑实质密度、形态正常，放射性分布均匀、对称，诸脑室、脑池、脑沟、脑裂未见异常，中线结构居中。右下肺背段、前底段及外基底段巨大分叶状软组织密度肿块影放射性浓聚，SUV约8.4，最大层面约6.2CM×7.6CM，周边可见毛刺，病灶侵犯右侧肋胸膜及斜裂胸膜，病灶周围斑片影放射性分布略浓密，增强扫描明显不均匀强化。余双肺多发大小部分结节部分放射性分布浓密，SUV约5.7，最大者约1.5CM×3.4CM，部分呈分叶状，可见毛刺。右下肺支气管受压狭窄，气管、余支气管通畅。右侧后肋胸膜局部增厚放射性分布略浓密，SUV约3.4。右侧胸腔少量液性低密度影放射性分布稀疏，CT值约10HU。心脏各壁及纵隔大血管未见明显异常。双侧胸壁未见确切病灶和异常放射性分布。双锁上、左上气管旁、血管前、气管后、左下气管旁、主动脉下、主动脉旁、隆突下、食管旁、左下肺韧带、双肺门及双上肺叶多发淋巴结放射性浓聚，SUV约11.9，最大者约1.5CM×3.2CM，增强扫描明显强化。双侧腋窝多个小淋巴结放射性分布未见异常。鼻咽、口咽及喉咽结构及放射性分布未见明显异常。左侧筛窦结节状高密度影放射性分布未见明显异常，大小约0.8CM×0.9CM，CT值约1146HU，额窦、蝶窦、右侧筛窦及双侧上颌窦结构及放射性分布未见明显异常。甲状腺放射性分布未见异常。双颈多个小淋巴结放射性分布未见异常。肝脏S8点状高密度影放射性缺损，余肝脏形态、结构及放射性分布未见明显异常。肝门结构及放射性分布未见明显异常。肝内、外胆管未见扩张。胆囊、胃及十二指肠放射性分布未见明显异常。脾脏、双肾及肾上腺形态、结构及放射性分布未见异常。胰尾部低密度影放射性分布浓密，SUV约7.7，大小约1.7CM×1.9CM，增强扫描明显不均匀强化。左肾前间隙结节放射性分布浓密，SUV约4.2，大小约1.5CM×1.9CM，内见低密度坏死区，增强扫描环形强化。腹腔未见肿大淋巴结及异常放射性分布。前列腺增大推挤膀胱后壁，大小约CM，内见数个点状小钙化灶放射性缺损。膀胱及肠管等形态、结构及放射性分布未见明显异常。双髂血管旁未见肿大淋巴结及异常放射性分布。双侧腹股沟多个小淋巴结放射性分布未见异常。全身多发动脉壁钙化灶放射性缺损。多个胸腰椎骨赘形成放射性分布未见异常。所见颅骨、余躯干骨、四肢骨放射性分布未见明显异常。右下肺背段、前底段及外基底段病灶代谢活跃，考虑肺癌伴阻塞性肺炎及癌性淋巴管炎，病灶侵犯右侧肋胸膜及斜裂胸膜；双锁上、纵隔、双肺门及双上肺叶多发淋巴结代谢活跃，考虑转移；右侧顶枕交界处结节代谢活跃，右侧后肋胸膜局部增厚代谢活跃，左肾前间隙结节代谢活跃，考虑转移；胰尾病灶代谢活跃，考虑恶性病变，转移?右侧胸腔少量积液。左侧筛窦高密度影代谢未见明显异常，考虑良性病变，真菌性筛窦炎可能。肝脏S8肝内胆管小结石。前列腺增生伴小钙化灶。多个胸腰椎骨质增生。动脉硬化。</t>
+    <t>空腹6H以上,静脉注射18F-FDG,静息约60MMIN后行全身PET/CT断层显像+胸部CT增强,影像清晰。右侧顶枕交界处结节放射性分布浓密,SUV约7.4,大小约0.6CM×0.8CM,增强扫描明显强化,周围可见大片低密度水肿影放射性分布稀疏,余双侧脑实质密度、形态正常,放射性分布均匀、对称,诸脑室、脑池、脑沟、脑裂未见异常,中线结构居中。右下肺背段、前底段及外基底段巨大分叶状软组织密度肿块影放射性浓聚,SUV约8.4,最大层面约6.2CM×7.6CM,周边可见毛刺,病灶侵犯右侧肋胸膜及斜裂胸膜,病灶周围斑片影放射性分布略浓密,增强扫描明显不均匀强化。余双肺多发大小部分结节部分放射性分布浓密,SUV约5.7,最大者约1.5CM×3.4CM,部分呈分叶状,可见毛刺。右下肺支气管受压狭窄,气管、余支气管通畅。右侧后肋胸膜局部增厚放射性分布略浓密,SUV约3.4。右侧胸腔少量液性低密度影放射性分布稀疏,CT值约10HU。心脏各壁及纵隔大血管未见明显异常。双侧胸壁未见确切病灶和异常放射性分布。双锁上、左上气管旁、血管前、气管后、左下气管旁、主动脉下、主动脉旁、隆突下、食管旁、左下肺韧带、双肺门及双上肺叶多发淋巴结放射性浓聚,SUV约11.9,最大者约1.5CM×3.2CM,增强扫描明显强化。双侧腋窝多个小淋巴结放射性分布未见异常。鼻咽、口咽及喉咽结构及放射性分布未见明显异常。左侧筛窦结节状高密度影放射性分布未见明显异常,大小约0.8CM×0.9CM,CT值约1146HU,额窦、蝶窦、右侧筛窦及双侧上颌窦结构及放射性分布未见明显异常。甲状腺放射性分布未见异常。双颈多个小淋巴结放射性分布未见异常。肝脏S8点状高密度影放射性缺损,余肝脏形态、结构及放射性分布未见明显异常。肝门结构及放射性分布未见明显异常。肝内、外胆管未见扩张。胆囊、胃及十二指肠放射性分布未见明显异常。脾脏、双肾及肾上腺形态、结构及放射性分布未见异常。胰尾部低密度影放射性分布浓密,SUV约7.7,大小约1.7CM×1.9CM,增强扫描明显不均匀强化。左肾前间隙结节放射性分布浓密,SUV约4.2,大小约1.5CM×1.9CM,内见低密度坏死区,增强扫描环形强化。腹腔未见肿大淋巴结及异常放射性分布。前列腺增大推挤膀胱后壁,大小约CM,内见数个点状小钙化灶放射性缺损。膀胱及肠管等形态、结构及放射性分布未见明显异常。双髂血管旁未见肿大淋巴结及异常放射性分布。双侧腹股沟多个小淋巴结放射性分布未见异常。全身多发动脉壁钙化灶放射性缺损。多个胸腰椎骨赘形成放射性分布未见异常。所见颅骨、余躯干骨、四肢骨放射性分布未见明显异常。右下肺背段、前底段及外基底段病灶代谢活跃,考虑肺癌伴阻塞性肺炎及癌性淋巴管炎,病灶侵犯右侧肋胸膜及斜裂胸膜;双锁上、纵隔、双肺门及双上肺叶多发淋巴结代谢活跃,考虑转移;右侧顶枕交界处结节代谢活跃,右侧后肋胸膜局部增厚代谢活跃,左肾前间隙结节代谢活跃,考虑转移;胰尾病灶代谢活跃,考虑恶性病变,转移?右侧胸腔少量积液。左侧筛窦高密度影代谢未见明显异常,考虑良性病变,真菌性筛窦炎可能。肝脏S8肝内胆管小结石。前列腺增生伴小钙化灶。多个胸腰椎骨质增生。动脉硬化。</t>
   </si>
   <si>
     <t>6.2CM×7.6CM</t>
@@ -2225,7 +2225,7 @@
     <t>双锁上,纵隔,双肺门及双上肺叶多发淋巴结,右侧顶枕交界处,右侧后肋胸膜,左肾前间隙,胰尾</t>
   </si>
   <si>
-    <t>双侧乳腺MT术后病例：肝脏多发转移；右侧锁骨区及腋窝淋巴结转移；左侧锁骨区稍大淋巴结，请随访；两肺慢性炎性结节，请随访；两肺慢性炎症；左侧胸腔少量积液；脂肪肝；肝脏和右肾囊肿；子宫多发肌瘤伴钙化。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。鼻窦区未见明显异常。颈部PET/CT图像示右侧锁骨区见2枚大小分别为11.7MM×7.5MM和8.0MM×6.0MM稍大淋巴结，其中较大者呈糖代谢增高，最大SUV值约为2.7；左锁骨区见一大小约为8.0MM×6.0MM稍大淋巴结，未见明显糖代谢异常增高；其余颈部未见明显肿大淋巴结；口咽、喉咽部无殊；甲状腺不大，密度欠均匀，未见明显糖代谢异常增高。胸部PET/CT图像示双侧乳腺MT根治术后，双侧胸壁及腋窝术区软组织影略增厚伴不同程度糖代谢增高，糖代谢最高处位于右侧胸壁术区，最大SUV值约为2.0，考虑为术后改变；右侧腋窝(胸大、小肌间隙)见淋巴结显示，其中一大小约为8.0MM×5.5MM淋巴结呈糖代谢增高，最大SUV值约为3.7；左侧腋窝见不伴糖代谢增高的小淋巴结；纵隔及双侧内乳、双肺门未见明显糖代谢异常增高及肿大淋巴结；左肺上叶斜裂旁、右肺中叶水平裂旁及两肺下叶基底段胸膜下见数枚直径小于4.0MM结节影，均无明显糖代谢异常增高；双肺多发条片条絮影，部分呈糖代谢增高，最大SUV值约为2.2；各级支气管腔通畅；双侧胸膜局部略增厚；左侧胸腔少量积液；心脏无明显增大。腹部PET/CT图像示肝脏左、右叶内见多枚稍低密度灶，早期及延迟1.5小时呈不同程度糖代谢增高，较显著2枚均位于左外叶，大小分别为30.0MM×27.0MM(早期最大SUV值约为10.9，延迟相最大SUV值约为13.5)和11.0MM×10.0MM(早期最大SUV值约为7.1，延迟相最大SUV值约为6.0)；肝内另见多枚无糖代谢增高的囊性低密度灶，较大者直径约为10.0MM；其余肝实质普遍密度减低，平均CT值约为45.8HU；肝内外胆管无扩张；右肾见无糖代谢增高的囊性低密度灶，较大者位于上极，直径约为16.4MM；胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；胆囊、胰、脾、双肾上腺、左肾、双输尿管及腹膜后未见糖代谢异常增高及占位；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁光滑无增厚；子宫形态不规则，表面多发结节样隆起，较大者位于宫底部，大小约为37.0MM×31.0MM，内见钙化；双附件区未见明显占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗所示诸骨未见明显骨质破坏。</t>
+    <t>双侧乳腺MT术后病例:肝脏多发转移;右侧锁骨区及腋窝淋巴结转移;左侧锁骨区稍大淋巴结,请随访;两肺慢性炎性结节,请随访;两肺慢性炎症;左侧胸腔少量积液;脂肪肝;肝脏和右肾囊肿;子宫多发肌瘤伴钙化。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼内肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。鼻窦区未见明显异常。颈部PET/CT图像示右侧锁骨区见2枚大小分别为11.7MM×7.5MM和8.0MM×6.0MM稍大淋巴结,其中较大者呈糖代谢增高,最大SUV值约为2.7;左锁骨区见一大小约为8.0MM×6.0MM稍大淋巴结,未见明显糖代谢异常增高;其余颈部未见明显肿大淋巴结;口咽、喉咽部无殊;甲状腺不大,密度欠均匀,未见明显糖代谢异常增高。胸部PET/CT图像示双侧乳腺MT根治术后,双侧胸壁及腋窝术区软组织影略增厚伴不同程度糖代谢增高,糖代谢最高处位于右侧胸壁术区,最大SUV值约为2.0,考虑为术后改变;右侧腋窝(胸大、小肌间隙)见淋巴结显示,其中一大小约为8.0MM×5.5MM淋巴结呈糖代谢增高,最大SUV值约为3.7;左侧腋窝见不伴糖代谢增高的小淋巴结;纵隔及双侧内乳、双肺门未见明显糖代谢异常增高及肿大淋巴结;左肺上叶斜裂旁、右肺中叶水平裂旁及两肺下叶基底段胸膜下见数枚直径小于4.0MM结节影,均无明显糖代谢异常增高;双肺多发条片条絮影,部分呈糖代谢增高,最大SUV值约为2.2;各级支气管腔通畅;双侧胸膜局部略增厚;左侧胸腔少量积液;心脏无明显增大。腹部PET/CT图像示肝脏左、右叶内见多枚稍低密度灶,早期及延迟1.5小时呈不同程度糖代谢增高,较显著2枚均位于左外叶,大小分别为30.0MM×27.0MM(早期最大SUV值约为10.9,延迟相最大SUV值约为13.5)和11.0MM×10.0MM(早期最大SUV值约为7.1,延迟相最大SUV值约为6.0);肝内另见多枚无糖代谢增高的囊性低密度灶,较大者直径约为10.0MM;其余肝实质普遍密度减低,平均CT值约为45.8HU;肝内外胆管无扩张;右肾见无糖代谢增高的囊性低密度灶,较大者位于上极,直径约为16.4MM;胃壁均匀性轻度糖代谢生理性增强;肠道呈线型生理性糖代谢增强;胆囊、胰、脾、双肾上腺、左肾、双输尿管及腹膜后未见糖代谢异常增高及占位;腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁光滑无增厚;子宫形态不规则,表面多发结节样隆起,较大者位于宫底部,大小约为37.0MM×31.0MM,内见钙化;双附件区未见明显占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗所示诸骨未见明显骨质破坏。</t>
   </si>
   <si>
     <t>双侧乳腺</t>
@@ -2234,34 +2234,34 @@
     <t>肝脏,右侧锁骨区及腋窝淋巴结</t>
   </si>
   <si>
-    <t>双肺结节，结合临床考虑转移，建议与旧片比较。\U007F纵隔肿大淋巴结，考虑转移。\U007F左侧胸腔、心包积液。\U007F肝脏病变建议结合腹部检查。右乳术后缺如，术区未见复发征象。\U007F双肺弥漫多发结节，较大位于右肺上叶，约30MM×19MM(IMA44)。左肺下叶见钙化结节(IMA8)。\U007F纵隔2R、4、7、10组见肿大淋巴结，较大者约45MM×22MM(IMA34)。\U007F双侧胸膜略厚，左侧见少量胸水。\U007F心包积液。\U007F胸廓诸骨未见骨质破坏。\U007F扫及肝脏见低密度结节(IMA12)。</t>
+    <t>双肺结节,结合临床考虑转移,建议与旧片比较。\U007F纵隔肿大淋巴结,考虑转移。\U007F左侧胸腔、心包积液。\U007F肝脏病变建议结合腹部检查。右乳术后缺如,术区未见复发征象。\U007F双肺弥漫多发结节,较大位于右肺上叶,约30MM×19MM(IMA44)。左肺下叶见钙化结节(IMA8)。\U007F纵隔2R、4、7、10组见肿大淋巴结,较大者约45MM×22MM(IMA34)。\U007F双侧胸膜略厚,左侧见少量胸水。\U007F心包积液。\U007F胸廓诸骨未见骨质破坏。\U007F扫及肝脏见低密度结节(IMA12)。</t>
   </si>
   <si>
     <t>双肺结节,纵隔肿大淋巴结</t>
   </si>
   <si>
-    <t>右肺癌脑转移化疗后复查：右肺门病灶并阻塞性肺炎，较前相仿；双肺弥漫转移瘤，较前变化不明显；肝S2、S5肝囊肿；肝S7肝内胆管结石或钙化灶；胆囊结石；子宫肌瘤。右肺癌脑转移化疗后复查，与2013-7-15片对比：右上肺肺门区可见不规则软组织影，范围约22MM×23MM，边缘模糊，密度欠均匀，增强后见明显强化，右上肺叶支气管狭窄，远端肺内见不规则斑片影，邻近胸膜增厚，较前大致相仿。双肺可见弥漫分布粟粒状、结节状病灶，直径约1~12MM，最大者位于右下肺后基底段，边缘毛糙，增强后明显强化，较前变化不明显。气管及左侧支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝S2、S5可见低密度灶，大小约7MM及3MM，边界清楚，增强后未见强化，肝S7可见结节状致密灶。肝内胆管正常，其内未见结石影，胆囊稍增大，壁增厚，其内充满小结节状结石，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾所见正常。双肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁未见明显肿大淋巴结。膀胱充盈良好，境界清楚。子宫增大，其内见类圆形稍低密度影，大小约59MM×49MM，边缘光滑，密度均匀，增强扫描呈稍低密度影。子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。骨盆骨质未见异常。扫描层面内未见明显骨质破坏。</t>
+    <t>右肺癌脑转移化疗后复查:右肺门病灶并阻塞性肺炎,较前相仿;双肺弥漫转移瘤,较前变化不明显;肝S2、S5肝囊肿;肝S7肝内胆管结石或钙化灶;胆囊结石;子宫肌瘤。右肺癌脑转移化疗后复查,与2013-7-15片对比:右上肺肺门区可见不规则软组织影,范围约22MM×23MM,边缘模糊,密度欠均匀,增强后见明显强化,右上肺叶支气管狭窄,远端肺内见不规则斑片影,邻近胸膜增厚,较前大致相仿。双肺可见弥漫分布粟粒状、结节状病灶,直径约1~12MM,最大者位于右下肺后基底段,边缘毛糙,增强后明显强化,较前变化不明显。气管及左侧支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度欠均匀,肝S2、S5可见低密度灶,大小约7MM及3MM,边界清楚,增强后未见强化,肝S7可见结节状致密灶。肝内胆管正常,其内未见结石影,胆囊稍增大,壁增厚,其内充满小结节状结石,胆总管未见扩张,其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。双肾所见正常。双肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁未见明显肿大淋巴结。膀胱充盈良好,境界清楚。子宫增大,其内见类圆形稍低密度影,大小约59MM×49MM,边缘光滑,密度均匀,增强扫描呈稍低密度影。子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。骨盆骨质未见异常。扫描层面内未见明显骨质破坏。</t>
   </si>
   <si>
     <t>脑,双肺</t>
   </si>
   <si>
-    <t>右乳腺癌术后放化疗后，与2014-05-05CT片对比：左乳内上象限结节，较前未见明显变化。双肺多发结节，考虑转移瘤可能性大，较前未见明显变化。肝内多发病变，考虑转移瘤可能性大，较前变化不大。右侧第3后肋、T6左侧椎弓、T7椎体左缘及L2椎体、左侧髂骨骨质改变，考虑转移瘤，较前未见明显变化。左侧肱骨头人工关节置换术后改变。甲状腺双叶病变，考虑结节性甲状腺肿。头颅CT扫描未见明显异常。右乳腺癌术后放化疗后，与2014-05-05CT片对比：右乳术后缺失，局部未见明确肿物，左乳内上象限见一结节样病变，大小约10MM×12MM，边清较清，增强扫描轻度强化，较前未见明显变化。双侧腋窝未见肿大淋巴结。双肺见数个结节样病变，大者约11MM×13MM，边界不清楚，密度不均匀，内见空泡，较前未见明显变化。气管和支气管分支通畅。双肺门和纵隔未见肿大淋巴结，双侧胸腔未见积液，胸膜未见增厚。肝脏形态、大小正常，各叶比例在正常范围内，外形轮廓光整，密度不均匀，肝内见多个低密度区，最大者约13MM×10MM，边界不清，边缘轻度强化，较前变化不明显。肝内外胆管未见扩张。胆囊大小正常，壁光滑，其内未见异常密度灶。脾脏未见增大，密度均匀。胰腺大小、形态、密度未见异常。双肾未见异常，双侧肾上腺未见异常。腹膜后未见明显肿大淋巴结。甲状腺双叶密度不均匀，内见数个稍低密度灶，最大者约7MM×6MM，边界欠清，增强扫描轻度强化，较前无明显变化。膀胱充盈良好，境界清楚。子宫大小、形态未见明显异常，子宫颈大小、形态未见异常。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。左侧股骨头见植入人工关节，周围见较多金属伪影。右侧第3后肋、T6左侧椎弓、T7椎体左缘及L2椎体见片状骨质密度增高灶，边界欠清楚，较前未见明显变化，左侧髂骨见骨质破坏，对比2013-11-4片，较前变化不大。脑实质内未见明确异常密度影及异常强化灶，脑沟、裂、池不宽，脑室对称不大，中线结构无移位，幕下结构未见异常，颅骨未见骨质异常。</t>
+    <t>右乳腺癌术后放化疗后,与2014-05-05CT片对比:左乳内上象限结节,较前未见明显变化。双肺多发结节,考虑转移瘤可能性大,较前未见明显变化。肝内多发病变,考虑转移瘤可能性大,较前变化不大。右侧第3后肋、T6左侧椎弓、T7椎体左缘及L2椎体、左侧髂骨骨质改变,考虑转移瘤,较前未见明显变化。左侧肱骨头人工关节置换术后改变。甲状腺双叶病变,考虑结节性甲状腺肿。头颅CT扫描未见明显异常。右乳腺癌术后放化疗后,与2014-05-05CT片对比:右乳术后缺失,局部未见明确肿物,左乳内上象限见一结节样病变,大小约10MM×12MM,边清较清,增强扫描轻度强化,较前未见明显变化。双侧腋窝未见肿大淋巴结。双肺见数个结节样病变,大者约11MM×13MM,边界不清楚,密度不均匀,内见空泡,较前未见明显变化。气管和支气管分支通畅。双肺门和纵隔未见肿大淋巴结,双侧胸腔未见积液,胸膜未见增厚。肝脏形态、大小正常,各叶比例在正常范围内,外形轮廓光整,密度不均匀,肝内见多个低密度区,最大者约13MM×10MM,边界不清,边缘轻度强化,较前变化不明显。肝内外胆管未见扩张。胆囊大小正常,壁光滑,其内未见异常密度灶。脾脏未见增大,密度均匀。胰腺大小、形态、密度未见异常。双肾未见异常,双侧肾上腺未见异常。腹膜后未见明显肿大淋巴结。甲状腺双叶密度不均匀,内见数个稍低密度灶,最大者约7MM×6MM,边界欠清,增强扫描轻度强化,较前无明显变化。膀胱充盈良好,境界清楚。子宫大小、形态未见明显异常,子宫颈大小、形态未见异常。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。左侧股骨头见植入人工关节,周围见较多金属伪影。右侧第3后肋、T6左侧椎弓、T7椎体左缘及L2椎体见片状骨质密度增高灶,边界欠清楚,较前未见明显变化,左侧髂骨见骨质破坏,对比2013-11-4片,较前变化不大。脑实质内未见明确异常密度影及异常强化灶,脑沟、裂、池不宽,脑室对称不大,中线结构无移位,幕下结构未见异常,颅骨未见骨质异常。</t>
   </si>
   <si>
     <t>双肺,肝,右侧第3后肋,T6左侧椎弓,T7椎体左缘,L2椎体,左侧髂骨</t>
   </si>
   <si>
-    <t>1.结合临床，肝癌术后介入术后改变，门脉右支栓子形成，肝左叶条状低密度区，考虑门脉栓子，建议观察；双肺转移2.脾大3.盆腔少量积液肝右叶术后，术区结构紊乱，肝左右叶比例失调，门脉右支内见条状低密度灶，边缘模糊，增强后强化不著。另肝左叶内小条状低密度区，边缘模糊，似延门脉分支走形，增强后强化不著。胆囊充盈可，壁不厚。脾体积明显增大。胰腺、双侧肾上腺及双肾未见异常。腹腔及腹膜后未见明显肿大淋巴结。双侧肺野内见多发大小不等结节灶，边缘清晰，大者直径约0.5CM，增强后可见强化。纵隔内未见明显肿大淋巴结。前列腺及双侧精囊腺形态可，密度均匀。膀胱充盈欠佳，壁略厚。盆腔内见少许液性密度影。盆腔内未见明显肿大淋巴结。</t>
-  </si>
-  <si>
-    <t>右肺中央型肺癌，侵犯右侧胸膜，右侧少量胸腔积液、心包积液。右肺小叶间隔增厚并多发斑片影和类结节灶，考虑肺癌并淋巴管播散可能性大。右侧锁骨上右侧肺门纵隔肿大淋巴结，考虑转移。左肺上叶小结节状稍高密度灶，可疑转移。双上肺见纤维增殖钙化灶，考虑陈旧性肺结核。肝S6小囊肿。右肾小囊肿。左肾肾盂小结石。右肺中叶、下叶支气管管腔狭窄，肺门区见大片状软组织肿物，范围难测量，侵犯邻近胸膜，增强扫描呈明显不均匀强化。右肺中叶肺不张。右肺小叶间隔增厚，见散在分布斑片影和类结节灶，以右下肺为著。左肺上叶另见一模糊稍高密度灶，大小约6MM×4MM。双上肺见纤维增殖钙化灶。左下肺见粗大长条索灶。右侧锁骨上、右侧肺门、右气管旁、左下气管旁、血管前方、隆突下见明显增大淋巴结，部分融合分界不清，最大者约23MM×15MM，增强扫描强化不均匀。左侧肺门未见明确肿大淋巴结。心包内见液体。右侧胸腔少量积液，左侧胸腔未见积液。左侧胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整。肝S6见小囊肿，直径约2MM，增强扫描未见强化。肝内胆管正常，其内未见结石影，肝门区和门静脉未见异常。胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。左肾肾盂内见小致密影，直径约1MM。右肾见囊性密度灶，大小约31MM×24MM，增强扫描未见强化。左肾所见及双肾上腺未见异常。腹主动脉旁未见肿大淋巴结。所见骨质未见明确破坏征象。</t>
+    <t>1.结合临床,肝癌术后介入术后改变,门脉右支栓子形成,肝左叶条状低密度区,考虑门脉栓子,建议观察;双肺转移2.脾大3.盆腔少量积液肝右叶术后,术区结构紊乱,肝左右叶比例失调,门脉右支内见条状低密度灶,边缘模糊,增强后强化不著。另肝左叶内小条状低密度区,边缘模糊,似延门脉分支走形,增强后强化不著。胆囊充盈可,壁不厚。脾体积明显增大。胰腺、双侧肾上腺及双肾未见异常。腹腔及腹膜后未见明显肿大淋巴结。双侧肺野内见多发大小不等结节灶,边缘清晰,大者直径约0.5CM,增强后可见强化。纵隔内未见明显肿大淋巴结。前列腺及双侧精囊腺形态可,密度均匀。膀胱充盈欠佳,壁略厚。盆腔内见少许液性密度影。盆腔内未见明显肿大淋巴结。</t>
+  </si>
+  <si>
+    <t>右肺中央型肺癌,侵犯右侧胸膜,右侧少量胸腔积液、心包积液。右肺小叶间隔增厚并多发斑片影和类结节灶,考虑肺癌并淋巴管播散可能性大。右侧锁骨上右侧肺门纵隔肿大淋巴结,考虑转移。左肺上叶小结节状稍高密度灶,可疑转移。双上肺见纤维增殖钙化灶,考虑陈旧性肺结核。肝S6小囊肿。右肾小囊肿。左肾肾盂小结石。右肺中叶、下叶支气管管腔狭窄,肺门区见大片状软组织肿物,范围难测量,侵犯邻近胸膜,增强扫描呈明显不均匀强化。右肺中叶肺不张。右肺小叶间隔增厚,见散在分布斑片影和类结节灶,以右下肺为著。左肺上叶另见一模糊稍高密度灶,大小约6MM×4MM。双上肺见纤维增殖钙化灶。左下肺见粗大长条索灶。右侧锁骨上、右侧肺门、右气管旁、左下气管旁、血管前方、隆突下见明显增大淋巴结,部分融合分界不清,最大者约23MM×15MM,增强扫描强化不均匀。左侧肺门未见明确肿大淋巴结。心包内见液体。右侧胸腔少量积液,左侧胸腔未见积液。左侧胸膜未见增厚。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整。肝S6见小囊肿,直径约2MM,增强扫描未见强化。肝内胆管正常,其内未见结石影,肝门区和门静脉未见异常。胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。左肾肾盂内见小致密影,直径约1MM。右肾见囊性密度灶,大小约31MM×24MM,增强扫描未见强化。左肾所见及双肾上腺未见异常。腹主动脉旁未见肿大淋巴结。所见骨质未见明确破坏征象。</t>
   </si>
   <si>
     <t>右侧锁骨上右侧肺门纵隔肿大淋巴结,左肺上叶</t>
   </si>
   <si>
-    <t>1、右下肺门至右下肺内异常高代谢占位，符合鳞癌表现。右肺下叶胸膜下结节/小结节，伴异常高代谢，考虑恶性(转移?)。右侧胸腔少量积液。双锁骨区、左腋窝区、纵隔及双肺门多发淋巴结转移。左前下腹壁及右臀部肌肉内代谢活跃灶，不除外转移。2、甲状腺右叶异常高代谢小结节，请结合超声除外恶性。左肺稍高密度小结节，不伴代谢，陈旧病变可能，胸CT随访。3、脑部未见明显异常代谢征象。双上颌窦炎。口咽炎性摄取，右咽旁及双颈部反应性淋巴结可能大。双肺支扩、气肿、肺大泡伴间质性改变。肝小囊肿?胆囊术后。副脾。脊柱退变。左髂骨骨岛。空腹6小时以上，静脉注射显像剂，平静休息60MMIN后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：左肺散在少许稍高密度小结节，较大者位于左斜裂胸膜下，约0.8CM×0.6CM(肺窗)，均未见明显放射性高摄取。右下肺门至右下肺内见不规则形软组织占位，伴异常放射性浓聚，SUVMAX37.5，较大截面约9.4CM×7.5CM(PET图像)。病变旁右斜裂胸膜下及右肺下叶后基底段胸膜下见软组织结节/小结节，伴异常放射性浓聚，SUVMAX40.7，范围较大者约2.9CM×1.5CM(肺窗)。双肺支扩、气肿、肺大泡。心肌显影。气管居中。胸膜无增厚，右侧胸腔少量积液，左胸水征阴性。左锁骨区、左腋窝区、纵隔2R/L、3A/P、4R/L、7区、8区、9R/L及双肺门见多发肿大淋巴结，伴异常放射性浓聚，SUVMAX40.4，较大者位于纵隔7区，约2.9CM×1.9CM。左前下腹壁及右臀部肌肉内见轻度放射性浓聚灶，SUVMAX3.1。大脑形态如常，皮层各叶放射性分布均匀。皮层下各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大。小脑显影如常，两侧小脑对称。口咽部双侧壁对称性放射性摄取增高，SUVMAX8.6，鼻咽部无异常放射性浓聚。双颌窦粘膜轻度增厚，未见明显放射性高摄取。甲状腺两叶不大，形态可，右叶见异常浓聚小结节，SUVMAX7.7。右咽旁及双颈部见多发轻度浓聚小淋巴结，SUVMAX3.9。胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝实质内放射性分布稍欠均匀。肝内见微小囊性灶，未见放射性浓聚。肝内外胆管无扩张。胆囊术后。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。脾门见多个副脾结节。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见异常浓聚淋巴结。腹水征阴性。膀胱放射性浓聚如常，膀胱壁无增厚。前列腺大小正常，放射性分布大致正常。双腹股沟未见异常浓聚淋巴结视野内轴心骨未见异常放射性浓聚。脊柱退变。左髂骨见高密度结节影，直径约0.9CM，未见明显放射性摄取。</t>
+    <t>1、右下肺门至右下肺内异常高代谢占位,符合鳞癌表现。右肺下叶胸膜下结节/小结节,伴异常高代谢,考虑恶性(转移?)。右侧胸腔少量积液。双锁骨区、左腋窝区、纵隔及双肺门多发淋巴结转移。左前下腹壁及右臀部肌肉内代谢活跃灶,不除外转移。2、甲状腺右叶异常高代谢小结节,请结合超声除外恶性。左肺稍高密度小结节,不伴代谢,陈旧病变可能,胸CT随访。3、脑部未见明显异常代谢征象。双上颌窦炎。口咽炎性摄取,右咽旁及双颈部反应性淋巴结可能大。双肺支扩、气肿、肺大泡伴间质性改变。肝小囊肿?胆囊术后。副脾。脊柱退变。左髂骨骨岛。空腹6小时以上,静脉注射显像剂,平静休息60MMIN后行全身PET及CT断层显像,PET图像经衰减校正及重建后,将PET及CT图像行多平面、多幅显示:左肺散在少许稍高密度小结节,较大者位于左斜裂胸膜下,约0.8CM×0.6CM(肺窗),均未见明显放射性高摄取。右下肺门至右下肺内见不规则形软组织占位,伴异常放射性浓聚,SUVMAX37.5,较大截面约9.4CM×7.5CM(PET图像)。病变旁右斜裂胸膜下及右肺下叶后基底段胸膜下见软组织结节/小结节,伴异常放射性浓聚,SUVMAX40.7,范围较大者约2.9CM×1.5CM(肺窗)。双肺支扩、气肿、肺大泡。心肌显影。气管居中。胸膜无增厚,右侧胸腔少量积液,左胸水征阴性。左锁骨区、左腋窝区、纵隔2R/L、3A/P、4R/L、7区、8区、9R/L及双肺门见多发肿大淋巴结,伴异常放射性浓聚,SUVMAX40.4,较大者位于纵隔7区,约2.9CM×1.9CM。左前下腹壁及右臀部肌肉内见轻度放射性浓聚灶,SUVMAX3.1。大脑形态如常,皮层各叶放射性分布均匀。皮层下各神经核团显影清晰,放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深,白质未见明显低密度影,中线无移位。脑室无扩大。小脑显影如常,两侧小脑对称。口咽部双侧壁对称性放射性摄取增高,SUVMAX8.6,鼻咽部无异常放射性浓聚。双颌窦粘膜轻度增厚,未见明显放射性高摄取。甲状腺两叶不大,形态可,右叶见异常浓聚小结节,SUVMAX7.7。右咽旁及双颈部见多发轻度浓聚小淋巴结,SUVMAX3.9。胃充盈好,胃壁显影如常。肝脏形态可,轮廓光整,肝叶比例正常,肝实质内放射性分布稍欠均匀。肝内见微小囊性灶,未见放射性浓聚。肝内外胆管无扩张。胆囊术后。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。脾门见多个副脾结节。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见异常浓聚淋巴结。腹水征阴性。膀胱放射性浓聚如常,膀胱壁无增厚。前列腺大小正常,放射性分布大致正常。双腹股沟未见异常浓聚淋巴结视野内轴心骨未见异常放射性浓聚。脊柱退变。左髂骨见高密度结节影,直径约0.9CM,未见明显放射性摄取。</t>
   </si>
   <si>
     <t>右下肺门至右下肺内</t>
@@ -2273,7 +2273,7 @@
     <t>右肺下叶胸膜,双锁骨区,左腋窝区,纵隔及双肺门多发淋巴结,左前下腹壁,右臀部肌肉</t>
   </si>
   <si>
-    <t>1.右肺癌伴阻塞性炎症，较前(2015-12-29)片好转；右侧锁骨上区、右肺门、纵隔淋巴结转移，较前部分缩小，部分变化不著；左侧锁骨上淋巴结肿大，较前略缩小2.肝内囊性密度灶，考虑囊肿可能性大，变化不著右肺上叶近肺门区可见小片状软组织密度肿块影，与肺门区肿大淋巴结融合，直径约1.2CM，远端可见少许斑片状密度增高影；增强后病变呈中等强化，上叶支气管狭窄。余双肺野清晰。双侧锁骨上区、右肺门、纵隔内右侧气管食管沟、右上气管旁、气管前腔静脉后、气管隆突下可见肿大淋巴结，大者短径约1.7CM。扫描野内肝内可见多发小囊性密度灶。</t>
+    <t>1.右肺癌伴阻塞性炎症,较前(2015-12-29)片好转;右侧锁骨上区、右肺门、纵隔淋巴结转移,较前部分缩小,部分变化不著;左侧锁骨上淋巴结肿大,较前略缩小2.肝内囊性密度灶,考虑囊肿可能性大,变化不著右肺上叶近肺门区可见小片状软组织密度肿块影,与肺门区肿大淋巴结融合,直径约1.2CM,远端可见少许斑片状密度增高影;增强后病变呈中等强化,上叶支气管狭窄。余双肺野清晰。双侧锁骨上区、右肺门、纵隔内右侧气管食管沟、右上气管旁、气管前腔静脉后、气管隆突下可见肿大淋巴结,大者短径约1.7CM。扫描野内肝内可见多发小囊性密度灶。</t>
   </si>
   <si>
     <t>1.2CM</t>
@@ -2282,13 +2282,13 @@
     <t>右侧锁骨上区,右肺门,纵隔淋巴结</t>
   </si>
   <si>
-    <t>左乳癌伴肝肺转移化疗后，与2014-07-23片对比：左侧乳腺腺体组织较右侧减少，呈术后改变，残存左侧乳腺组织内见不规则形团块状、结节状病灶，部分相互融合，边界不清，密度不均匀，其内见点状钙化影，大者范围约17MM×38MM，增强扫描不均匀明显强化，较前缩小，左侧胸大肌、胸小肌内可见多个强化结节，较大者大小约7MM×10MM，边界不清，较前缩小。病灶与左侧胸壁软组织及邻近皮肤分界不清，左乳皮肤不规则明显增厚，较前减轻，增强扫描不均匀强化；邻近皮下脂肪间隙变窄消失。左侧乳头轻度内陷。右侧乳腺大小、形态未见明显异常，腺体丰富，密度均匀，未见明确占位性病变。左侧锁骨上区、左侧腋窝见数个肿大淋巴结，较大者大小约8MM×10MM，边界不清，包膜不完整，增强扫描明显强化，较前缩小。右侧腋窝见多发小淋巴结，短径在5MM以内，边界清。双肺纹理粗乱，双侧前肋间胸膜、右侧叶间裂胸膜及左上肺舌段可见多个结节影，较大者大小约5MM×5MM，边界欠清，增强扫描可见强化，较前缩小；另右上肺前段、右中肺内侧段多发类结节灶，边界尚清，较前相仿。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。肝S7/8可见一类圆形低密度灶，大小约11MM×9MM，边界尚清，增强扫描呈明显结节状强化。肝S4另见一类圆形稍低密度灶，平扫边界欠清，直径约6MM，增强扫描强化不明显。肝内外胆管、胆总管及胆囊未见异常。肝门区正常。门静脉所见正常。脾及胰腺大小、形态正常，密度均匀。所见层面双肾及双侧肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。脑实质内未见明确异常密度影及异常强化灶，脑沟、裂、池不宽，脑室对称不大，中线结构无移位。扫描层面胸骨体、胸骨柄骨质破坏，形态不规则，局部见软组织影形成；余骨质未见明确破坏征象。左乳癌伴肝肺转移化疗后：左侧乳腺肿物，考虑较前缩小。左侧锁骨上区、左侧腋窝肿大淋巴结，考虑转移，较前缩小。右侧腋窝多发小淋巴结。双侧肋间胸膜、右侧叶间裂胸膜及左上肺舌段多发结节影，考虑转移瘤，较前缩小。右上、中肺多发类结节灶，考虑纤维增殖灶可能性大，较前相仿。肝S7/8低密度灶，考虑血管瘤。肝S4缘稍低密度灶，性质待定，建议随诊。胸骨骨质破坏，考虑转移瘤。颅脑未见明确异常。</t>
+    <t>左乳癌伴肝肺转移化疗后,与2014-07-23片对比:左侧乳腺腺体组织较右侧减少,呈术后改变,残存左侧乳腺组织内见不规则形团块状、结节状病灶,部分相互融合,边界不清,密度不均匀,其内见点状钙化影,大者范围约17MM×38MM,增强扫描不均匀明显强化,较前缩小,左侧胸大肌、胸小肌内可见多个强化结节,较大者大小约7MM×10MM,边界不清,较前缩小。病灶与左侧胸壁软组织及邻近皮肤分界不清,左乳皮肤不规则明显增厚,较前减轻,增强扫描不均匀强化;邻近皮下脂肪间隙变窄消失。左侧乳头轻度内陷。右侧乳腺大小、形态未见明显异常,腺体丰富,密度均匀,未见明确占位性病变。左侧锁骨上区、左侧腋窝见数个肿大淋巴结,较大者大小约8MM×10MM,边界不清,包膜不完整,增强扫描明显强化,较前缩小。右侧腋窝见多发小淋巴结,短径在5MM以内,边界清。双肺纹理粗乱,双侧前肋间胸膜、右侧叶间裂胸膜及左上肺舌段可见多个结节影,较大者大小约5MM×5MM,边界欠清,增强扫描可见强化,较前缩小;另右上肺前段、右中肺内侧段多发类结节灶,边界尚清,较前相仿。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。肝S7/8可见一类圆形低密度灶,大小约11MM×9MM,边界尚清,增强扫描呈明显结节状强化。肝S4另见一类圆形稍低密度灶,平扫边界欠清,直径约6MM,增强扫描强化不明显。肝内外胆管、胆总管及胆囊未见异常。肝门区正常。门静脉所见正常。脾及胰腺大小、形态正常,密度均匀。所见层面双肾及双侧肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。脑实质内未见明确异常密度影及异常强化灶,脑沟、裂、池不宽,脑室对称不大,中线结构无移位。扫描层面胸骨体、胸骨柄骨质破坏,形态不规则,局部见软组织影形成;余骨质未见明确破坏征象。左乳癌伴肝肺转移化疗后:左侧乳腺肿物,考虑较前缩小。左侧锁骨上区、左侧腋窝肿大淋巴结,考虑转移,较前缩小。右侧腋窝多发小淋巴结。双侧肋间胸膜、右侧叶间裂胸膜及左上肺舌段多发结节影,考虑转移瘤,较前缩小。右上、中肺多发类结节灶,考虑纤维增殖灶可能性大,较前相仿。肝S7/8低密度灶,考虑血管瘤。肝S4缘稍低密度灶,性质待定,建议随诊。胸骨骨质破坏,考虑转移瘤。颅脑未见明确异常。</t>
   </si>
   <si>
     <t>肝,肺,右侧叶间裂胸膜,左上肺舌段,胸骨,左侧锁骨上区,左侧腋窝肿大淋巴结,双侧肋间胸膜</t>
   </si>
   <si>
-    <t>空腹6小时以上，静脉注射显像剂，平静休息60MMIN后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：左肺门区见一软组织肿物，约4.5CM×2.7CM，伴异常放射性浓聚，最大SUV11.22，致左上肺支气管狭窄，远端肺内见阻塞性实变影及斑片影，不伴或伴轻度放射性摄取，最大SUV3.17。余肺另见多发小结节，最大者位于右下肺基底段，直径约0.7CM，未见明显放射性摄取。胸膜无增厚，胸水征阴性。双颈部、双锁骨上区、左锁骨下区、纵隔4L、5、7区及左肺门区见多发肿大淋巴结，均伴放射性浓聚，最大SUV3.13-5.64，最大者位于7区，约1.9CM×1.2CM。右肾上腺增粗伴放射性浓聚，最大SUV5.25；左肾上腺未见异常放射性浓聚。右10后肋、C2、C6、T1-2、T3、T10、L4、左髋臼见放射性浓聚灶，其中右10后肋、T1-2伴骨质破坏，最大SUV10.97。大脑形态如常，皮层各叶放射性分布均匀。皮层下各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，两侧小脑对称。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。两侧乳腺轻度显影，两侧大致对称，乳腺区未见异常浓聚灶。心肌显影清晰。胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝实质内放射性分布稍欠均匀。肝S2、S4见囊性密度灶，较大者约1.3CM，放射性分布稀疏。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。脾脏前方见副脾影。两侧肾脏显影可，左肾髓质部见钙化密度灶，右肾实质密度均匀，肾盂、肾盏及输尿管无扩张。腹部可见条索状肠影，结肠显影尤著。腹腔内及腹膜后未见明显肿大或异常浓聚淋巴结。腹水征阴性。膀胱放射性浓聚如常，膀胱壁无增厚。子宫形态、大小尚可，局部无异常放射性浓聚。两侧附件区未见异常放射性摄取。盆腔内及两侧腹股沟无异常淋巴结显示。视野内皮肤及软组织内未见异常放射性摄取。左上肺中心型高代谢占位，伴左上肺阻塞性炎症及不张，符合肺癌表现。双颈部、双锁骨上区、左锁骨下区、纵隔及左肺门淋巴结转移。右肾上腺转移。多发骨转移。双肺多发转移。脑内未见明显异常代谢征象，建议增强MRI。肝囊肿；副脾；左肾可疑结石。</t>
+    <t>空腹6小时以上,静脉注射显像剂,平静休息60MMIN后行全身PET及CT断层显像,PET图像经衰减校正及重建后,将PET及CT图像行多平面、多幅显示:左肺门区见一软组织肿物,约4.5CM×2.7CM,伴异常放射性浓聚,最大SUV11.22,致左上肺支气管狭窄,远端肺内见阻塞性实变影及斑片影,不伴或伴轻度放射性摄取,最大SUV3.17。余肺另见多发小结节,最大者位于右下肺基底段,直径约0.7CM,未见明显放射性摄取。胸膜无增厚,胸水征阴性。双颈部、双锁骨上区、左锁骨下区、纵隔4L、5、7区及左肺门区见多发肿大淋巴结,均伴放射性浓聚,最大SUV3.13-5.64,最大者位于7区,约1.9CM×1.2CM。右肾上腺增粗伴放射性浓聚,最大SUV5.25;左肾上腺未见异常放射性浓聚。右10后肋、C2、C6、T1-2、T3、T10、L4、左髋臼见放射性浓聚灶,其中右10后肋、T1-2伴骨质破坏,最大SUV10.97。大脑形态如常,皮层各叶放射性分布均匀。皮层下各神经核团显影清晰,放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深,白质未见明显低密度影,中线无移位。脑室无扩大,基底节区显示对称。小脑显影如常,两侧小脑对称。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。甲状腺两叶不大,形态可,腺实质内未见异常放射性增高灶。两侧乳腺轻度显影,两侧大致对称,乳腺区未见异常浓聚灶。心肌显影清晰。胃充盈好,胃壁显影如常。肝脏形态可,轮廓光整,肝叶比例正常,肝实质内放射性分布稍欠均匀。肝S2、S4见囊性密度灶,较大者约1.3CM,放射性分布稀疏。肝内外胆管无扩张。胆囊大小正常,密度均匀,胆囊壁无增厚。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。脾脏前方见副脾影。两侧肾脏显影可,左肾髓质部见钙化密度灶,右肾实质密度均匀,肾盂、肾盏及输尿管无扩张。腹部可见条索状肠影,结肠显影尤著。腹腔内及腹膜后未见明显肿大或异常浓聚淋巴结。腹水征阴性。膀胱放射性浓聚如常,膀胱壁无增厚。子宫形态、大小尚可,局部无异常放射性浓聚。两侧附件区未见异常放射性摄取。盆腔内及两侧腹股沟无异常淋巴结显示。视野内皮肤及软组织内未见异常放射性摄取。左上肺中心型高代谢占位,伴左上肺阻塞性炎症及不张,符合肺癌表现。双颈部、双锁骨上区、左锁骨下区、纵隔及左肺门淋巴结转移。右肾上腺转移。多发骨转移。双肺多发转移。脑内未见明显异常代谢征象,建议增强MRI。肝囊肿;副脾;左肾可疑结石。</t>
   </si>
   <si>
     <t>4.5CM×2.7CM</t>
@@ -2297,7 +2297,7 @@
     <t>双颈部,双锁骨上区,左锁骨下区,纵隔及左肺门淋巴结转移,右肾上腺,骨,双肺</t>
   </si>
   <si>
-    <t>右侧乳腺癌综合治疗后，对比2014.07.18日片：右侧乳腺未见明确结节及肿物。右前上胸壁肌间隙、右侧腋窝多个结节较前稍缩小。双肺多发小结节，原病灶较前稍增大，部分病灶为新增。肝脏未见明显占位病变。T12、L1椎体及其附件骨质破坏，考虑转移瘤可能性大。右侧乳腺癌综合治疗后，对比2014.07.18日片：右侧乳腺体积稍小，密度尚均匀，未见明确结节及肿物。左侧乳腺大小形态及密度未见异常，未见占位性病变。左侧腋窝及双侧内乳区未见明确肿大淋巴结。右上胸壁肌间隙及右侧腋窝见多个结节，边界清，最大位于右侧腋窝，最大约17MM×13MM，密度尚均匀，较前稍缩小。双侧胸廓对称，双肺纹理清晰，双肺野内见多个小类结节，边界清，最大短径约5MM，与前片对比，原病灶较前稍增大，部分病灶为新增；气管及支气管分支通畅，双侧肺门及纵隔未见肿大淋巴结，双侧未见胸腔积液及胸膜增厚。肝脏形态、各叶比例未见异常，其外形轮廓光整，未见明显异常密度灶。肝内胆管无扩张，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见肿大淋巴结。脾不大，密度均匀。胰腺大小、形态未见异常，密度均匀。所见双侧肾盂未见结石，所见双肾实质未见异常。双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。T12、L1椎体及其附件见不规则骨质破坏区，局部略膨胀，边界模糊，见软组织肿块形成并部分向椎管内突出致椎管狭窄。</t>
+    <t>右侧乳腺癌综合治疗后,对比2014.07.18日片:右侧乳腺未见明确结节及肿物。右前上胸壁肌间隙、右侧腋窝多个结节较前稍缩小。双肺多发小结节,原病灶较前稍增大,部分病灶为新增。肝脏未见明显占位病变。T12、L1椎体及其附件骨质破坏,考虑转移瘤可能性大。右侧乳腺癌综合治疗后,对比2014.07.18日片:右侧乳腺体积稍小,密度尚均匀,未见明确结节及肿物。左侧乳腺大小形态及密度未见异常,未见占位性病变。左侧腋窝及双侧内乳区未见明确肿大淋巴结。右上胸壁肌间隙及右侧腋窝见多个结节,边界清,最大位于右侧腋窝,最大约17MM×13MM,密度尚均匀,较前稍缩小。双侧胸廓对称,双肺纹理清晰,双肺野内见多个小类结节,边界清,最大短径约5MM,与前片对比,原病灶较前稍增大,部分病灶为新增;气管及支气管分支通畅,双侧肺门及纵隔未见肿大淋巴结,双侧未见胸腔积液及胸膜增厚。肝脏形态、各叶比例未见异常,其外形轮廓光整,未见明显异常密度灶。肝内胆管无扩张,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。肝门区未见肿大淋巴结。脾不大,密度均匀。胰腺大小、形态未见异常,密度均匀。所见双侧肾盂未见结石,所见双肾实质未见异常。双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。T12、L1椎体及其附件见不规则骨质破坏区,局部略膨胀,边界模糊,见软组织肿块形成并部分向椎管内突出致椎管狭窄。</t>
   </si>
   <si>
     <t>T12,L1椎体及其附件骨</t>
@@ -2306,7 +2306,7 @@
     <t>T12,L1椎体</t>
   </si>
   <si>
-    <t>右肺下叶占位、双肺结节，考虑肺癌、肺内多发转移可能。纵隔、右肺门、右锁骨上区多发肿大淋巴结，转移。双肺间质病变。右肾上腺结节，转移?请结合腹部检查。左肺上叶见一软组织结节，约26MM×20MM(IM29)，分叶状，可见强化。右肺下叶外基底段软组织肿块，约37MM×31MM(IM42)，边缘分叶，可见强化。双肺内另见散在小结节影，较大约7MM(IM21)。双肺见散在网格影，右肺上叶胸膜下为著。纵隔2R、4-7组、右肺门、右锁骨上区见多发肿大淋巴结，较大约57MM×42MM(IM30)。双侧胸膜增厚，右侧少量胸水。扫及胸廓诸骨未见明确破坏征象。扫及右侧肾上腺结节(IM57)。</t>
+    <t>右肺下叶占位、双肺结节,考虑肺癌、肺内多发转移可能。纵隔、右肺门、右锁骨上区多发肿大淋巴结,转移。双肺间质病变。右肾上腺结节,转移?请结合腹部检查。左肺上叶见一软组织结节,约26MM×20MM(IM29),分叶状,可见强化。右肺下叶外基底段软组织肿块,约37MM×31MM(IM42),边缘分叶,可见强化。双肺内另见散在小结节影,较大约7MM(IM21)。双肺见散在网格影,右肺上叶胸膜下为著。纵隔2R、4-7组、右肺门、右锁骨上区见多发肿大淋巴结,较大约57MM×42MM(IM30)。双侧胸膜增厚,右侧少量胸水。扫及胸廓诸骨未见明确破坏征象。扫及右侧肾上腺结节(IM57)。</t>
   </si>
   <si>
     <t>右肺下叶外基底段</t>
@@ -2318,16 +2318,16 @@
     <t>双肺,肺内,纵隔,右肺门,右锁骨上区多发肿大淋巴结,右肾上腺</t>
   </si>
   <si>
-    <t>1.考虑鼻咽癌并颈部淋巴结转移，对比2012-04-16片，颈部肿大淋巴结部分缩小，余未见明显改变，请结合临床详查；2.双侧上颌窦及筛窦炎；3.甲状腺改变，首先考虑为结节性甲状腺肿，请结合临床。鼻咽部后部软组织增厚，密度欠均，边缘不规整，可见结节突起影，右侧侧隐窝变浅，右侧鼻咽部饱满，突起结节样增强后明显强化。甲状腺双叶密度欠均，可见小圆形低密度影，大者径约为0.4CM。增强扫描未见强化。双侧上颌窦及筛窦粘膜增厚。双侧颈部可见多发肿大淋巴结影。</t>
+    <t>1.考虑鼻咽癌并颈部淋巴结转移,对比2012-04-16片,颈部肿大淋巴结部分缩小,余未见明显改变,请结合临床详查;2.双侧上颌窦及筛窦炎;3.甲状腺改变,首先考虑为结节性甲状腺肿,请结合临床。鼻咽部后部软组织增厚,密度欠均,边缘不规整,可见结节突起影,右侧侧隐窝变浅,右侧鼻咽部饱满,突起结节样增强后明显强化。甲状腺双叶密度欠均,可见小圆形低密度影,大者径约为0.4CM。增强扫描未见强化。双侧上颌窦及筛窦粘膜增厚。双侧颈部可见多发肿大淋巴结影。</t>
   </si>
   <si>
     <t>颈部淋巴结</t>
   </si>
   <si>
-    <t>左乳癌术后、左锁骨上窝淋巴结转移术后，与2011-11-09片对比：左侧乳腺缺失，左侧胸壁未见明显结节影。左侧内乳区、双侧最上纵隔组、主动脉弓旁可见数个淋巴结，最大者约10MM×15MM，增强后可见明显强化，较前未见明显变化。甲状腺右叶增大，内见结节状病灶，大小约为18MM×21MM及16MM×17MM，边界清楚，内见钙化，肿物下缘约平胸骨切迹，局部气管无明显受压变窄，增强后可见明显强化，未见明显变化。右乳可见结节状病灶，大小约6MM×13MM及9MM×9MM，增强后可见较明显强化，与前片对比，未见明显变化。左上肺叶可见斑片状、条索状影，右肺纹理清晰，未见结节影；气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。双侧胸腔未见积液；胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝内见多个囊性低密度区，大小约3MM×3MM~48MM×36MM，边界清楚，密度均匀，增强后未见强化，与前片对比，较前未见明显变化；肝内胆管未见扩张，胆囊大小正常，其内未见结石影，胆总管未见扩张。肝门区未见肿大淋巴结；门静脉未见充盈缺损。脾大小正常，密度均匀；胰腺大小、形态正常，密度均匀；双肾大小、形态正常，双肾实质见数个小囊性灶，大小约5MM×5MM~10MM×10MM；双侧肾上腺大小、形态、密度正常；膈脚后、腹主动脉旁未见肿大淋巴结。所见骨质未见明确破坏征象。左乳癌术后、左锁骨上窝淋巴结转移术后，与2011-11-09片对比：左侧内乳区、主动脉弓旁淋巴结较前未见明显变化。左上肺叶纤维增殖灶。甲状腺右叶病灶，考虑结节性甲状腺肿可能性大。右侧乳腺结节，较前未见明显变化。肝囊肿，肾囊肿。</t>
-  </si>
-  <si>
-    <t>右肺上叶尖段肿块，考虑肺癌并周围阻塞性炎症、肺不张。双肺上叶肺大泡。气管后、右下气管旁、右肺门淋巴结肿大，考虑转移可能性大。肝脏未见明确病变。肝内胆管轻度扩张。右肾囊肿。右肺上叶尖段见一软组织肿块，边界尚清，范围约53MM×45MM，呈分叶状，密度不均匀，内钙化点及小空洞，增强扫描呈不均匀强化，病灶与右上胸膜、纵隔胸膜分界不清，与邻近气管后淋巴结分界不清。右肺上叶(病灶周围)见多发斑片状影，边界模糊，密度不均匀。双肺上叶可见多发囊状透亮影，边界清，内无肺纹理，右肺为著。气管及其余支气管尚通畅。气管后间隙、右下气管旁、右肺门可见散在淋巴结，边界欠清，大者约15MM×21MM，增强后呈不均匀强化。左侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝实质密度均匀，未见异常强化表现。肝内胆管轻度扩张。胆囊大小正常，胆总管未见扩张，其内未见结石影。肝门区结构未见异常。门静脉主干及分支未见充盈缺损。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见一囊性灶，直径约42MM，边界清，未见强化。左肾及双肾上腺未见明确异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。所见骨质结构未见破坏征象。</t>
+    <t>左乳癌术后、左锁骨上窝淋巴结转移术后,与2011-11-09片对比:左侧乳腺缺失,左侧胸壁未见明显结节影。左侧内乳区、双侧最上纵隔组、主动脉弓旁可见数个淋巴结,最大者约10MM×15MM,增强后可见明显强化,较前未见明显变化。甲状腺右叶增大,内见结节状病灶,大小约为18MM×21MM及16MM×17MM,边界清楚,内见钙化,肿物下缘约平胸骨切迹,局部气管无明显受压变窄,增强后可见明显强化,未见明显变化。右乳可见结节状病灶,大小约6MM×13MM及9MM×9MM,增强后可见较明显强化,与前片对比,未见明显变化。左上肺叶可见斑片状、条索状影,右肺纹理清晰,未见结节影;气管及支气管分枝通畅,未见明显软组织肿物或受压变窄。双侧胸腔未见积液;胸膜未见增厚。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度欠均匀,肝内见多个囊性低密度区,大小约3MM×3MM~48MM×36MM,边界清楚,密度均匀,增强后未见强化,与前片对比,较前未见明显变化;肝内胆管未见扩张,胆囊大小正常,其内未见结石影,胆总管未见扩张。肝门区未见肿大淋巴结;门静脉未见充盈缺损。脾大小正常,密度均匀;胰腺大小、形态正常,密度均匀;双肾大小、形态正常,双肾实质见数个小囊性灶,大小约5MM×5MM~10MM×10MM;双侧肾上腺大小、形态、密度正常;膈脚后、腹主动脉旁未见肿大淋巴结。所见骨质未见明确破坏征象。左乳癌术后、左锁骨上窝淋巴结转移术后,与2011-11-09片对比:左侧内乳区、主动脉弓旁淋巴结较前未见明显变化。左上肺叶纤维增殖灶。甲状腺右叶病灶,考虑结节性甲状腺肿可能性大。右侧乳腺结节,较前未见明显变化。肝囊肿,肾囊肿。</t>
+  </si>
+  <si>
+    <t>右肺上叶尖段肿块,考虑肺癌并周围阻塞性炎症、肺不张。双肺上叶肺大泡。气管后、右下气管旁、右肺门淋巴结肿大,考虑转移可能性大。肝脏未见明确病变。肝内胆管轻度扩张。右肾囊肿。右肺上叶尖段见一软组织肿块,边界尚清,范围约53MM×45MM,呈分叶状,密度不均匀,内钙化点及小空洞,增强扫描呈不均匀强化,病灶与右上胸膜、纵隔胸膜分界不清,与邻近气管后淋巴结分界不清。右肺上叶(病灶周围)见多发斑片状影,边界模糊,密度不均匀。双肺上叶可见多发囊状透亮影,边界清,内无肺纹理,右肺为著。气管及其余支气管尚通畅。气管后间隙、右下气管旁、右肺门可见散在淋巴结,边界欠清,大者约15MM×21MM,增强后呈不均匀强化。左侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,肝实质密度均匀,未见异常强化表现。肝内胆管轻度扩张。胆囊大小正常,胆总管未见扩张,其内未见结石影。肝门区结构未见异常。门静脉主干及分支未见充盈缺损。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。右肾见一囊性灶,直径约42MM,边界清,未见强化。左肾及双肾上腺未见明确异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。所见骨质结构未见破坏征象。</t>
   </si>
   <si>
     <t>53MM×45MM</t>
@@ -2336,7 +2336,7 @@
     <t>气管后,右下气管旁,右肺门淋巴结</t>
   </si>
   <si>
-    <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像(头颈部及上胸部因患者无法配合而未采集PET图像)。下胸部PET/CT图像示右肺下叶背段胸膜下见糖代谢轻度增高的团片影，边缘似见毛刺，大小约为28.8MM×10.5MM，最大SUV值为2.2；两肺散在无糖代谢异常增高的条索影；各级支气管腔通畅；双侧胸膜无增厚；双侧胸腔无积液；心脏无明显增大。腹部PET图像见胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内未见明显占位；肝内外胆管无扩张；脾脏不大，内见小钙化灶；右肾见直径约为11.5MM的低密度灶，右肾另见小致密影；胆囊、胰、左肾、双肾上腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈，壁光滑无增厚；双侧精囊腺形态可；双侧膀胱精囊三角对称；前列腺增大，内见钙化灶；盆腔内未见占位；左下腹见小肠及脂肪组织疝入腹股沟管；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT示第7、8胸椎椎体及右侧附件及相邻右侧第8、9后肋骨质破坏，局部软组织肿块形成，侵及邻近椎管内，伴糖代谢异常增高，最大SUV值为11.8，第8胸椎椎管狭窄，脊髓受压；余处骨骼未见糖代谢异常增高及骨质破坏吸收征象。所示颈部及上胸部CT图像未见明显占位病变。第7、8胸椎及邻近右侧第8、9后肋转移性MT可能，第8胸椎水平椎管狭窄、脊髓受压；右肺下叶糖代谢轻度增高的占位，考虑为MT可能，请结合临床；两肺慢性炎症；右肾囊肿，右肾小结石；脾脏钙化灶；左侧斜疝；前列腺增生伴钙化。</t>
+    <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像(头颈部及上胸部因患者无法配合而未采集PET图像)。下胸部PET/CT图像示右肺下叶背段胸膜下见糖代谢轻度增高的团片影,边缘似见毛刺,大小约为28.8MM×10.5MM,最大SUV值为2.2;两肺散在无糖代谢异常增高的条索影;各级支气管腔通畅;双侧胸膜无增厚;双侧胸腔无积液;心脏无明显增大。腹部PET图像见胃壁均匀性轻度生理性糖代谢增强;肠道呈线型生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整,各叶比例匀称,实质内未见明显占位;肝内外胆管无扩张;脾脏不大,内见小钙化灶;右肾见直径约为11.5MM的低密度灶,右肾另见小致密影;胆囊、胰、左肾、双肾上腺无殊;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈,壁光滑无增厚;双侧精囊腺形态可;双侧膀胱精囊三角对称;前列腺增大,内见钙化灶;盆腔内未见占位;左下腹见小肠及脂肪组织疝入腹股沟管;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET/CT示第7、8胸椎椎体及右侧附件及相邻右侧第8、9后肋骨质破坏,局部软组织肿块形成,侵及邻近椎管内,伴糖代谢异常增高,最大SUV值为11.8,第8胸椎椎管狭窄,脊髓受压;余处骨骼未见糖代谢异常增高及骨质破坏吸收征象。所示颈部及上胸部CT图像未见明显占位病变。第7、8胸椎及邻近右侧第8、9后肋转移性MT可能,第8胸椎水平椎管狭窄、脊髓受压;右肺下叶糖代谢轻度增高的占位,考虑为MT可能,请结合临床;两肺慢性炎症;右肾囊肿,右肾小结石;脾脏钙化灶;左侧斜疝;前列腺增生伴钙化。</t>
   </si>
   <si>
     <t>28.8MM×10.5MM</t>
@@ -2345,13 +2345,13 @@
     <t>第7、8胸椎及邻近右侧第8、9后肋,右肺下叶</t>
   </si>
   <si>
-    <t>右侧乳腺癌综合治疗后，对比2016-5-25片：右侧乳腺未见明显结节及肿物。右前上胸壁肌间隙、右侧腋窝多发结节，考虑转移瘤，较前相仿。双肺弥漫多发结节灶，考虑转移，部分病灶较前稍增大。右侧内乳区、纵隔及双肺门多发肿大淋巴结，考虑转移，较前相仿。肝脏多发结节，考虑转移，较前增多、部分增大。右肾小结石。多发骨转移瘤，较前增多，部分增大。右侧乳腺癌综合治疗后，对比2016-5-25片：右侧乳腺体积较对侧稍小，未见明显结节及肿物。左侧乳腺大小形态及密度未见异常，未见占位性病变。左侧腋窝及左侧内乳区未见明确肿大淋巴结。右上胸壁肌间隙及右侧腋窝见多个结节，边界欠清，最大位于右侧腋窝，最大者约24MM×17MM，密度尚均匀，较前相仿。双肺内见弥漫多发大小不等结节灶，部分相融合、边界欠清，与邻近胸膜牵拉粘连，较大者大小约34MM×25MM(右肺中叶)，部分病灶较前稍增大。气管及支气管分支尚通畅。右侧内乳区、右上下气管旁、主动脉弓旁、隆突下及双肺门见数个肿大淋巴结，大者短径约15MM，边界欠清，较前相仿。双侧未见胸腔积液。双侧胸膜稍增厚、粘连。肝脏各叶比例未见异常，其外形轮廓光整，肝内见多发类圆形结节灶，较大者38MM×36MM，部分融合，边界欠清，密度欠均匀，较前增多、部分增大。肝内胆管无扩张，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见肿大淋巴结。脾、胰腺大小、形态未见异常，密度均匀。右下肾盏见斑点状致密影；左肾及双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。双侧肩胛骨、左侧肱骨头、胸骨、C7、T1~6、T7~12、L1、2椎体及部分附件、多条肋骨见不规则骨质破坏区，部分骨质破坏区局部略膨胀，边界模糊，见软组织肿块形成并部分向椎管内突出致椎管狭窄，与前片对比，病灶较前增多，部分增大。</t>
+    <t>右侧乳腺癌综合治疗后,对比2016-5-25片:右侧乳腺未见明显结节及肿物。右前上胸壁肌间隙、右侧腋窝多发结节,考虑转移瘤,较前相仿。双肺弥漫多发结节灶,考虑转移,部分病灶较前稍增大。右侧内乳区、纵隔及双肺门多发肿大淋巴结,考虑转移,较前相仿。肝脏多发结节,考虑转移,较前增多、部分增大。右肾小结石。多发骨转移瘤,较前增多,部分增大。右侧乳腺癌综合治疗后,对比2016-5-25片:右侧乳腺体积较对侧稍小,未见明显结节及肿物。左侧乳腺大小形态及密度未见异常,未见占位性病变。左侧腋窝及左侧内乳区未见明确肿大淋巴结。右上胸壁肌间隙及右侧腋窝见多个结节,边界欠清,最大位于右侧腋窝,最大者约24MM×17MM,密度尚均匀,较前相仿。双肺内见弥漫多发大小不等结节灶,部分相融合、边界欠清,与邻近胸膜牵拉粘连,较大者大小约34MM×25MM(右肺中叶),部分病灶较前稍增大。气管及支气管分支尚通畅。右侧内乳区、右上下气管旁、主动脉弓旁、隆突下及双肺门见数个肿大淋巴结,大者短径约15MM,边界欠清,较前相仿。双侧未见胸腔积液。双侧胸膜稍增厚、粘连。肝脏各叶比例未见异常,其外形轮廓光整,肝内见多发类圆形结节灶,较大者38MM×36MM,部分融合,边界欠清,密度欠均匀,较前增多、部分增大。肝内胆管无扩张,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。肝门区未见肿大淋巴结。脾、胰腺大小、形态未见异常,密度均匀。右下肾盏见斑点状致密影;左肾及双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。双侧肩胛骨、左侧肱骨头、胸骨、C7、T1~6、T7~12、L1、2椎体及部分附件、多条肋骨见不规则骨质破坏区,部分骨质破坏区局部略膨胀,边界模糊,见软组织肿块形成并部分向椎管内突出致椎管狭窄,与前片对比,病灶较前增多,部分增大。</t>
   </si>
   <si>
     <t>右前上胸壁肌间隙,右侧腋窝,双肺,右侧内乳区,纵隔及双肺门多发肿大淋巴结,肝脏,骨</t>
   </si>
   <si>
-    <t>右肺尖示小片状不规则软组织密度影，截面约1.3CM×0.8CM(肺窗)，边缘分叶、毛刺，牵拉邻近胸膜凹陷，增强后呈不均匀强化，其内可见小空泡影。双肺野内见多发结节及类结节灶，部分其内可见小空泡影，大者直径约1.5CM。另于右肺野内见多发斑片状及条索状密度增高影，边缘模糊。另右肺近斜裂胸膜处可见片状密度增高影，形态不规则，内见支气管充气征。双侧叶间胸膜示增厚，左侧叶间胸膜及左肺下叶见小类结节灶。左乳外上象限见一不规则软组织结节灶，长径约0.6CM，边缘分叶可见少许毛刺，增强后呈轻度强化。左锁上、纵隔内右上气管旁、气管前腔静脉后、主肺动脉窗区、隆突下、双肺门见多发小或稍大淋巴结，大者短径约0.7CM，部分内可见钙化。1.结合临床，右肺癌治疗后，较前(2016-05-26)基本变化不著；双肺转移较前部分增大，部分变化不著2.结合临床，左乳癌治疗后，较前变化不著3.左锁上、纵隔及肺门小或稍大淋巴结，变化不著4.右肺局限性炎症及纤维炎性变，变化不著；双侧叶间胸膜增厚，均变化不著</t>
+    <t>右肺尖示小片状不规则软组织密度影,截面约1.3CM×0.8CM(肺窗),边缘分叶、毛刺,牵拉邻近胸膜凹陷,增强后呈不均匀强化,其内可见小空泡影。双肺野内见多发结节及类结节灶,部分其内可见小空泡影,大者直径约1.5CM。另于右肺野内见多发斑片状及条索状密度增高影,边缘模糊。另右肺近斜裂胸膜处可见片状密度增高影,形态不规则,内见支气管充气征。双侧叶间胸膜示增厚,左侧叶间胸膜及左肺下叶见小类结节灶。左乳外上象限见一不规则软组织结节灶,长径约0.6CM,边缘分叶可见少许毛刺,增强后呈轻度强化。左锁上、纵隔内右上气管旁、气管前腔静脉后、主肺动脉窗区、隆突下、双肺门见多发小或稍大淋巴结,大者短径约0.7CM,部分内可见钙化。1.结合临床,右肺癌治疗后,较前(2016-05-26)基本变化不著;双肺转移较前部分增大,部分变化不著2.结合临床,左乳癌治疗后,较前变化不著3.左锁上、纵隔及肺门小或稍大淋巴结,变化不著4.右肺局限性炎症及纤维炎性变,变化不著;双侧叶间胸膜增厚,均变化不著</t>
   </si>
   <si>
     <t>右肺尖,左乳</t>
@@ -2360,10 +2360,10 @@
     <t>1.3CM×0.8CM,0.6CM</t>
   </si>
   <si>
-    <t>右肺尖示小片状不规则软组织密度影，截面约1.3CM×0.8CM(肺窗)，边缘分叶、毛刺，牵拉邻近胸膜凹陷，增强后呈不均匀强化，其内可见小空泡影。另于右肺野内见多发斑片状及条索状密度增高影，边缘模糊，并可见少许类结节灶，大者直径约1.1CM。另右肺近斜裂胸膜处可见片状密度增高影，形态不规则，内见支气管充气征。双侧叶间胸膜示增厚，左侧叶间胸膜及左肺下叶见小类结节灶，大者直径约0.5CM。左乳外上象限见一不规则软组织结节灶，长径约0.6CM，边缘分叶可见少许毛刺，增强后呈轻度强化。左锁上、纵隔内右上气管旁、气管前腔静脉后、主肺动脉窗区、隆突下、双肺门见多发小或稍大淋巴结，大者短径约0.7CM，部分内可见钙化。1.结合临床，右肺癌治疗后，较前(2016-3-24)变化不著；双肺转移较前进展2.结合临床，左乳癌治疗后，较前变化不著3.左锁上、纵隔及肺门小或稍大淋巴结，变化不著4.右肺局限性炎症及纤维炎性变；双侧叶间胸膜增厚，均变化不著</t>
-  </si>
-  <si>
-    <t>1.结合病史，右肺下叶癌治疗后，较前(2015-2-2)变化不著。2.双肺转移，右侧胸膜转移并右侧胸腔少量积液，右肺癌性淋巴管炎，均变化不著；肝转移，较前示进展；骨转移，部分密度增高，部分略示增大。3.结合临床，右乳癌治疗后，变化不著。4.右腋窝淋巴结稍大，较前缩小；腹腔、腹膜后及左肺门增大淋巴结，部分略示饱满。5.右肺下叶部分不张，局部略示增大；左肺炎症，较前好转。右肺下叶背段见一不规则形软组织结节，截面约1.7CM×2.2CM，边缘毛糙伴毛刺，牵拉邻近胸膜凹陷，远端见索条影及小叶间隔增厚，增强后结节呈显著不均匀强化。双肺见多发结节灶，局部呈粟粒状改变，大者长径约0.5CM。右侧胸膜、叶间胸膜亦示增厚伴多发结节灶，增强后见强化。右肺部分肺组织实变。右侧胸腔见少量液性密度影。左锁上见小淋巴结，短径约0.4CM。左肺门见稍大淋巴结，短径不足1.0CM。右乳内可见多发明显强化区。右腋窝可见肿大淋巴结，大者直径约0.6CM。肝实质内见多发斑片状低密度灶，边缘模糊，大者长径约4.3CM，增强后示不均质强化。胆囊不大，壁不厚。胰腺、脾、双肾上腺及扫描野内双肾未见明显异常。腹腔胃底周围、肠系膜区及腹膜后腹主动脉旁示增大或小淋巴结，大者短径约0.7CM。骨窗：扫描野内多个胸椎示混合性骨质破坏，成骨性改变为主。部分肋骨骨质密度略增高。</t>
+    <t>右肺尖示小片状不规则软组织密度影,截面约1.3CM×0.8CM(肺窗),边缘分叶、毛刺,牵拉邻近胸膜凹陷,增强后呈不均匀强化,其内可见小空泡影。另于右肺野内见多发斑片状及条索状密度增高影,边缘模糊,并可见少许类结节灶,大者直径约1.1CM。另右肺近斜裂胸膜处可见片状密度增高影,形态不规则,内见支气管充气征。双侧叶间胸膜示增厚,左侧叶间胸膜及左肺下叶见小类结节灶,大者直径约0.5CM。左乳外上象限见一不规则软组织结节灶,长径约0.6CM,边缘分叶可见少许毛刺,增强后呈轻度强化。左锁上、纵隔内右上气管旁、气管前腔静脉后、主肺动脉窗区、隆突下、双肺门见多发小或稍大淋巴结,大者短径约0.7CM,部分内可见钙化。1.结合临床,右肺癌治疗后,较前(2016-3-24)变化不著;双肺转移较前进展2.结合临床,左乳癌治疗后,较前变化不著3.左锁上、纵隔及肺门小或稍大淋巴结,变化不著4.右肺局限性炎症及纤维炎性变;双侧叶间胸膜增厚,均变化不著</t>
+  </si>
+  <si>
+    <t>1.结合病史,右肺下叶癌治疗后,较前(2015-2-2)变化不著。2.双肺转移,右侧胸膜转移并右侧胸腔少量积液,右肺癌性淋巴管炎,均变化不著;肝转移,较前示进展;骨转移,部分密度增高,部分略示增大。3.结合临床,右乳癌治疗后,变化不著。4.右腋窝淋巴结稍大,较前缩小;腹腔、腹膜后及左肺门增大淋巴结,部分略示饱满。5.右肺下叶部分不张,局部略示增大;左肺炎症,较前好转。右肺下叶背段见一不规则形软组织结节,截面约1.7CM×2.2CM,边缘毛糙伴毛刺,牵拉邻近胸膜凹陷,远端见索条影及小叶间隔增厚,增强后结节呈显著不均匀强化。双肺见多发结节灶,局部呈粟粒状改变,大者长径约0.5CM。右侧胸膜、叶间胸膜亦示增厚伴多发结节灶,增强后见强化。右肺部分肺组织实变。右侧胸腔见少量液性密度影。左锁上见小淋巴结,短径约0.4CM。左肺门见稍大淋巴结,短径不足1.0CM。右乳内可见多发明显强化区。右腋窝可见肿大淋巴结,大者直径约0.6CM。肝实质内见多发斑片状低密度灶,边缘模糊,大者长径约4.3CM,增强后示不均质强化。胆囊不大,壁不厚。胰腺、脾、双肾上腺及扫描野内双肾未见明显异常。腹腔胃底周围、肠系膜区及腹膜后腹主动脉旁示增大或小淋巴结,大者短径约0.7CM。骨窗:扫描野内多个胸椎示混合性骨质破坏,成骨性改变为主。部分肋骨骨质密度略增高。</t>
   </si>
   <si>
     <t>右乳,右肺下叶背段</t>
@@ -2375,7 +2375,7 @@
     <t>双肺,右侧胸膜,肝,骨</t>
   </si>
   <si>
-    <t>左肺下叶背段支气管截断，基底段支气管狭窄，局部见软组织肿块，约48MM×52MM(IMA29)，增强扫描不均匀强化，肿块与肺门肿大淋巴结融合，包绕左下肺动脉，上叶支气管受压变窄；肿块周缘毛糙，见多发索条及模糊结节。左下肺支气管扩张，见散在片絮影；左肺上叶尖后段见结节，其内见斑点状钙化。双肺见多发薄壁透亮区。右肺未见结节及斑片。\U007F纵隔5组及左肺门见肿大淋巴结，较大者约31MM×29MM(IMA21)。\U007F右侧叶间胸膜结节样增厚，左侧叶间胸膜增厚；双侧胸腔未见积液。\U007F扫及胸廓诸骨未见明确破坏征象。\U007F扫及双侧肾上腺见结节，左侧较大，约39MM×23MM(IMA62)。左下肺占位，符合中心型肺癌；左肺内转移待除外；纵隔及左侧肺门淋巴结转移。\U007F\U007F左肺上叶陈旧病灶。\U007F双肺小叶中心型肺气肿、肺大泡。右侧叶间胸膜结节样增厚，追查。\U007F双侧肾上腺结节，考虑转移，建议腹部检查。\U007F。</t>
+    <t>左肺下叶背段支气管截断,基底段支气管狭窄,局部见软组织肿块,约48MM×52MM(IMA29),增强扫描不均匀强化,肿块与肺门肿大淋巴结融合,包绕左下肺动脉,上叶支气管受压变窄;肿块周缘毛糙,见多发索条及模糊结节。左下肺支气管扩张,见散在片絮影;左肺上叶尖后段见结节,其内见斑点状钙化。双肺见多发薄壁透亮区。右肺未见结节及斑片。\U007F纵隔5组及左肺门见肿大淋巴结,较大者约31MM×29MM(IMA21)。\U007F右侧叶间胸膜结节样增厚,左侧叶间胸膜增厚;双侧胸腔未见积液。\U007F扫及胸廓诸骨未见明确破坏征象。\U007F扫及双侧肾上腺见结节,左侧较大,约39MM×23MM(IMA62)。左下肺占位,符合中心型肺癌;左肺内转移待除外;纵隔及左侧肺门淋巴结转移。\U007F\U007F左肺上叶陈旧病灶。\U007F双肺小叶中心型肺气肿、肺大泡。右侧叶间胸膜结节样增厚,追查。\U007F双侧肾上腺结节,考虑转移,建议腹部检查。\U007F。</t>
   </si>
   <si>
     <t>48MM×52MM</t>
@@ -2384,16 +2384,16 @@
     <t>左肺内,纵隔及左侧肺门淋巴结</t>
   </si>
   <si>
-    <t>肝右叶术后，术区结构紊乱，肝左右叶比例失调，门脉右支内见条状低密度灶，边缘模糊，增强后强化不著。另肝左外叶内见小条状低密度区，边缘模糊，似延门脉分支走形，增强后强化不著。胆囊充盈可，壁不厚。脾体积明显增大，密度均质。胰腺、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见明显肿大淋巴结。双侧肺野内见多发大小不等结节灶，边缘清晰，大者直径约0.7CM，增强后可见强化。纵隔及双肺门未见明显肿大淋巴结。骨窗示：T11椎体局限性骨质密度增高。1.结合临床，肝癌术后介入术后改变，门脉右支栓子形成，肝左叶条状低密度区，考虑门脉栓子，较前(2015-7-16)变化不著；双肺转移，较前部分病灶增大。部分变化不著；T11椎体局限性骨质密度增高，较前变化不著2.脾大</t>
-  </si>
-  <si>
-    <t>骨盆诸骨形态及信号未见明显异常。子宫大小形态可，信号未见明显异常。双侧附件区见数个卵圆形长T1长T2囊性信号影。膀胱及直肠未见明显异常。盆腔内未见明显肿大淋巴结。双肺内未见明显占位性病变。双肺门及纵隔内未见明显肿大淋巴结。右乳腺乳头上方见一肿块状等T1等T2信号，压脂序列为高信号，DWI序列为高信号，增强扫描呈较显著强化，大小约33MM×15MM。右腋窝见一肿大淋巴结，短径约17MM。余未见异常。考虑右乳腺癌并右腋窝淋巴结转移考虑双侧卵巢囊性灶</t>
+    <t>肝右叶术后,术区结构紊乱,肝左右叶比例失调,门脉右支内见条状低密度灶,边缘模糊,增强后强化不著。另肝左外叶内见小条状低密度区,边缘模糊,似延门脉分支走形,增强后强化不著。胆囊充盈可,壁不厚。脾体积明显增大,密度均质。胰腺、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见明显肿大淋巴结。双侧肺野内见多发大小不等结节灶,边缘清晰,大者直径约0.7CM,增强后可见强化。纵隔及双肺门未见明显肿大淋巴结。骨窗示:T11椎体局限性骨质密度增高。1.结合临床,肝癌术后介入术后改变,门脉右支栓子形成,肝左叶条状低密度区,考虑门脉栓子,较前(2015-7-16)变化不著;双肺转移,较前部分病灶增大。部分变化不著;T11椎体局限性骨质密度增高,较前变化不著2.脾大</t>
+  </si>
+  <si>
+    <t>骨盆诸骨形态及信号未见明显异常。子宫大小形态可,信号未见明显异常。双侧附件区见数个卵圆形长T1长T2囊性信号影。膀胱及直肠未见明显异常。盆腔内未见明显肿大淋巴结。双肺内未见明显占位性病变。双肺门及纵隔内未见明显肿大淋巴结。右乳腺乳头上方见一肿块状等T1等T2信号,压脂序列为高信号,DWI序列为高信号,增强扫描呈较显著强化,大小约33MM×15MM。右腋窝见一肿大淋巴结,短径约17MM。余未见异常。考虑右乳腺癌并右腋窝淋巴结转移考虑双侧卵巢囊性灶</t>
   </si>
   <si>
     <t>33MM×15MM</t>
   </si>
   <si>
-    <t>左肺下叶见不规则肿物，边界不清，最大层面范围约70MM×31MM，边缘毛糙，可见短毛刺及浅分叶，密度欠均匀，增强扫描不均匀强化，内见多发片状坏死区，病灶与邻近肋胸膜及纵隔胸膜关系密切，与左下肺动静脉后基底段支分界不清，右下肺支气管主干、右下肺背段及后基底段支气管受压变窄，左下肺支气管主干后壁见一类结节影，大小约7MM×4MM，可见强化。双肺见多发无肺纹理透亮影。右中肺内侧段见少许条索影，边界清。余肺纹理清晰，未见实质性病变。气管及余支气管分支未见明显狭窄及异常扩张。左下气管旁、左下肺静脉旁、左肺门可见多个肿大淋巴结，部分边界不清，左肺门淋巴结与肺内病灶融合，最大者短径约18MM，增强扫描明显强化。双侧锁骨上区、右上下气管旁、右肺门可见多个淋巴结，孤立散在，较大者短径约6MM，可见强化。右上气管旁见数个小淋巴结，边界清，短径约4MM，增强扫描轻度强化。双侧胸腔未见积液。左上肺胸膜增厚、粘连。肝脏轮廓未见明显异常，各叶比例在正常范围以内，其外形光整，肝S2见一类圆形低密度灶，边界清，大小约8MM×6MM，增强扫描未见强化。肝S2似见一稍低密度灶，边界欠清，直径约7MM，增强扫描动脉期明显强化，门脉期及延迟期呈高密度。肝内胆管未见明显异常，胆囊未见明显扩张，胆总管未扩张。肝门区未见明显异常。门静脉未见明显异常。脾大小未见明显异常，密度均匀。胰腺大小、形态未见明显异常，密度均匀。双肾及双侧肾上腺未见明显异常。腹腔干、腹主动脉旁、肠系膜根部未见肿大淋巴结。甲状腺双叶及峡部形态正常，密度欠均匀，甲状腺左叶与峡部交界处、右叶各见一低密度灶，边界清，大者约14MM×10MM，边缘可见圆点状钙化，增强扫描不均匀强化。右侧颈VI区见一淋巴结，边界清，大小约11MM×10MM，增强扫描明显均匀强化。扫描所见骨质未见病理性破坏征象。左肺下叶不规则肿物，考虑周围型肺癌可能性大，考虑胸膜浸润。左下肺支气管主干类结节影，考虑种植转移可能，未除外原发性肺癌。左下气管旁、左下肺静脉旁、左肺门肿大淋巴结，考虑转移。右中肺内侧段少许纤维增殖灶。双肺肺气肿。双侧锁骨上区、右上下气管旁、右肺门淋巴结，性质待定。肝S2低密度无强化灶，考虑囊肿。肝S2强化结节，考虑血管瘤。甲状腺低密度灶，性质待定，建议结合超声检查。右侧颈VI区淋巴结，可疑转移。</t>
+    <t>左肺下叶见不规则肿物,边界不清,最大层面范围约70MM×31MM,边缘毛糙,可见短毛刺及浅分叶,密度欠均匀,增强扫描不均匀强化,内见多发片状坏死区,病灶与邻近肋胸膜及纵隔胸膜关系密切,与左下肺动静脉后基底段支分界不清,右下肺支气管主干、右下肺背段及后基底段支气管受压变窄,左下肺支气管主干后壁见一类结节影,大小约7MM×4MM,可见强化。双肺见多发无肺纹理透亮影。右中肺内侧段见少许条索影,边界清。余肺纹理清晰,未见实质性病变。气管及余支气管分支未见明显狭窄及异常扩张。左下气管旁、左下肺静脉旁、左肺门可见多个肿大淋巴结,部分边界不清,左肺门淋巴结与肺内病灶融合,最大者短径约18MM,增强扫描明显强化。双侧锁骨上区、右上下气管旁、右肺门可见多个淋巴结,孤立散在,较大者短径约6MM,可见强化。右上气管旁见数个小淋巴结,边界清,短径约4MM,增强扫描轻度强化。双侧胸腔未见积液。左上肺胸膜增厚、粘连。肝脏轮廓未见明显异常,各叶比例在正常范围以内,其外形光整,肝S2见一类圆形低密度灶,边界清,大小约8MM×6MM,增强扫描未见强化。肝S2似见一稍低密度灶,边界欠清,直径约7MM,增强扫描动脉期明显强化,门脉期及延迟期呈高密度。肝内胆管未见明显异常,胆囊未见明显扩张,胆总管未扩张。肝门区未见明显异常。门静脉未见明显异常。脾大小未见明显异常,密度均匀。胰腺大小、形态未见明显异常,密度均匀。双肾及双侧肾上腺未见明显异常。腹腔干、腹主动脉旁、肠系膜根部未见肿大淋巴结。甲状腺双叶及峡部形态正常,密度欠均匀,甲状腺左叶与峡部交界处、右叶各见一低密度灶,边界清,大者约14MM×10MM,边缘可见圆点状钙化,增强扫描不均匀强化。右侧颈VI区见一淋巴结,边界清,大小约11MM×10MM,增强扫描明显均匀强化。扫描所见骨质未见病理性破坏征象。左肺下叶不规则肿物,考虑周围型肺癌可能性大,考虑胸膜浸润。左下肺支气管主干类结节影,考虑种植转移可能,未除外原发性肺癌。左下气管旁、左下肺静脉旁、左肺门肿大淋巴结,考虑转移。右中肺内侧段少许纤维增殖灶。双肺肺气肿。双侧锁骨上区、右上下气管旁、右肺门淋巴结,性质待定。肝S2低密度无强化灶,考虑囊肿。肝S2强化结节,考虑血管瘤。甲状腺低密度灶,性质待定,建议结合超声检查。右侧颈VI区淋巴结,可疑转移。</t>
   </si>
   <si>
     <t>70MM×31MM</t>
@@ -2402,13 +2402,13 @@
     <t>左肺门淋巴结,左下肺支气管主干,左下气管旁,左下肺静脉旁,左肺门肿大淋巴结,右侧颈VI区淋巴结</t>
   </si>
   <si>
-    <t>右侧乳腺癌术后复发、化疗后：右侧乳腺术后缺失，右侧胸壁未见明显结节、肿块影，局部皮肤增厚，皮下脂肪内见少许索条影。左侧乳腺未见异常。双侧腋窝、双侧内乳区未见肿大淋巴结。右侧胸腔大量积液，右肺上叶、中叶、下叶受压，肺组织不张，增强扫描明显强化。左肺纹理清晰，左肺下叶背段见结节状稍高密度影，边界不清，长径约12MM，增强扫描强化不明显。右肺中叶、下叶支气管腔变窄，右肺上叶支气管受压。气管及余支气管分支通畅。双侧锁骨上窝、右上气管旁、血管前、主肺动脉窗、双下气管旁、隆突下、右肺门见多发淋巴结，其中右肺门淋巴结与不张的右肺组织相互融合，分界不清。左侧胸腔未见积液。左侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，未见明显异常密度灶，增强扫描未见异常强化影。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉未见充盈缺损。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾及双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。右侧第4后肋骨质膨胀，骨质密度不均匀增高，部分骨皮质连续；腰1椎体左侧份见一结节状高密度影，边界尚清，直径5MM。右侧乳腺癌术后，对比2016-12-29片：右乳腺术后缺失，局部未见明显肿物影。右侧胸腔积液，并右肺压缩性肺不张，较前无大变化。左下肺类结节灶，较前变化不大。双侧锁骨上窝、纵隔、右肺门多发淋巴结，较前未见明显变化。右侧第4后肋可疑转移瘤，较前变化不明显。腰1椎体左侧份结节状高密度影，可疑转移，较前变化不明显。上腹部未见明显病变。</t>
+    <t>右侧乳腺癌术后复发、化疗后:右侧乳腺术后缺失,右侧胸壁未见明显结节、肿块影,局部皮肤增厚,皮下脂肪内见少许索条影。左侧乳腺未见异常。双侧腋窝、双侧内乳区未见肿大淋巴结。右侧胸腔大量积液,右肺上叶、中叶、下叶受压,肺组织不张,增强扫描明显强化。左肺纹理清晰,左肺下叶背段见结节状稍高密度影,边界不清,长径约12MM,增强扫描强化不明显。右肺中叶、下叶支气管腔变窄,右肺上叶支气管受压。气管及余支气管分支通畅。双侧锁骨上窝、右上气管旁、血管前、主肺动脉窗、双下气管旁、隆突下、右肺门见多发淋巴结,其中右肺门淋巴结与不张的右肺组织相互融合,分界不清。左侧胸腔未见积液。左侧胸膜无增厚、粘连。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,未见明显异常密度灶,增强扫描未见异常强化影。肝内胆管正常,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。肝门区未见异常。门静脉未见充盈缺损。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。双肾及双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。右侧第4后肋骨质膨胀,骨质密度不均匀增高,部分骨皮质连续;腰1椎体左侧份见一结节状高密度影,边界尚清,直径5MM。右侧乳腺癌术后,对比2016-12-29片:右乳腺术后缺失,局部未见明显肿物影。右侧胸腔积液,并右肺压缩性肺不张,较前无大变化。左下肺类结节灶,较前变化不大。双侧锁骨上窝、纵隔、右肺门多发淋巴结,较前未见明显变化。右侧第4后肋可疑转移瘤,较前变化不明显。腰1椎体左侧份结节状高密度影,可疑转移,较前变化不明显。上腹部未见明显病变。</t>
   </si>
   <si>
     <t>右侧第4后肋,腰1椎体左侧</t>
   </si>
   <si>
-    <t>右锁上、双上下气管旁、血管前、隆突下、双肺门见多发肿大淋巴结，最大者约30MM×16MM，边界不清，部分相互融合，增强扫描呈不均匀强化。右肺下叶见一肿块，大小约31MM×27MM，边界清晰，边缘见毛刺及分叶，增强扫描呈轻度强化，肿块外侧见片状致密影及纤维条索，边界稍模糊。右肺上叶后段见一斑点状钙化灶。余双肺纹理清晰，肺内未见实质性病变。右肺下叶外基底段支气管部分分支变窄，气管及余支气管分支通畅。双侧胸腔未见积液。右下胸膜稍增厚，左侧胸膜未见增厚、粘连。肝脏形态、各叶比例未见异常，其外形轮廓光整，密度均匀，增强扫描未见异常强化灶。肝内外胆管未见异常，其内未见结石，胆囊未见异常。肝门区未见异常。门静脉未见异常。脾脏、胰腺大小、形态、密度未见异常，增强扫描未见异常强化。双肾见数个斑点状致密灶，双肾见数个类圆形低密度灶，最大者约6MM×5MM，边界清晰，增强扫描未见强化。双肾上腺未见异常。腹主动脉旁未见肿大淋巴结。扫描范围内所见骨质未见明确破坏征象。右肺下叶肿块，考虑肺癌，肿块外侧斑片状病变，考虑炎症可能性大。右锁上、纵隔、双肺门多发淋巴结转移瘤。右肺上叶后段小钙化灶。肝脏未见明显病变。双肾小结石，双肾小囊肿。</t>
+    <t>右锁上、双上下气管旁、血管前、隆突下、双肺门见多发肿大淋巴结,最大者约30MM×16MM,边界不清,部分相互融合,增强扫描呈不均匀强化。右肺下叶见一肿块,大小约31MM×27MM,边界清晰,边缘见毛刺及分叶,增强扫描呈轻度强化,肿块外侧见片状致密影及纤维条索,边界稍模糊。右肺上叶后段见一斑点状钙化灶。余双肺纹理清晰,肺内未见实质性病变。右肺下叶外基底段支气管部分分支变窄,气管及余支气管分支通畅。双侧胸腔未见积液。右下胸膜稍增厚,左侧胸膜未见增厚、粘连。肝脏形态、各叶比例未见异常,其外形轮廓光整,密度均匀,增强扫描未见异常强化灶。肝内外胆管未见异常,其内未见结石,胆囊未见异常。肝门区未见异常。门静脉未见异常。脾脏、胰腺大小、形态、密度未见异常,增强扫描未见异常强化。双肾见数个斑点状致密灶,双肾见数个类圆形低密度灶,最大者约6MM×5MM,边界清晰,增强扫描未见强化。双肾上腺未见异常。腹主动脉旁未见肿大淋巴结。扫描范围内所见骨质未见明确破坏征象。右肺下叶肿块,考虑肺癌,肿块外侧斑片状病变,考虑炎症可能性大。右锁上、纵隔、双肺门多发淋巴结转移瘤。右肺上叶后段小钙化灶。肝脏未见明显病变。双肾小结石,双肾小囊肿。</t>
   </si>
   <si>
     <t>31MM×27MM</t>
@@ -2417,25 +2417,25 @@
     <t>右锁上,纵隔,双肺门多发淋巴结</t>
   </si>
   <si>
-    <t>左下肺癌楔形切除术后、化疗及靶向治疗后，和2016-06-14片对比：左下肺条片影，考虑术后改变可能性大，较前未见明显变化。右肺中叶及左下肺近胸膜结节灶，较前新增，可疑转移瘤。右肺上叶尖段小斑片稍高密度灶，较前稍增多。左肺上叶下舌段、右下肺斑片灶，考虑纤维灶。右下肺肺大泡。胆囊结石。双肾囊肿，部分复发性囊肿。T12椎体高密度灶，较前稍增大，可疑转移瘤。左侧侧胸壁不规则片状影，考虑术后改变。左侧肩胛骨前方脂肪瘤，较前相仿。左下肺癌楔形切除术后、化疗及靶向治疗后，和2016-06-14片对比：双肺纹理清晰，左肺下叶背段及后基底段见不规则条片影，边界欠清，邻近胸膜牵拉，较前未见明显变化。右肺上叶尖段见2个小斑片稍高密度灶，边界欠清，大者直径约6MM，较前稍增多。右肺中叶、左下肺近胸膜见多个结节灶，边界清，大者直径约7MM，增强后轻度强化。左肺上叶下舌段、右下肺见斑片灶，边界欠清。右下肺见多个含气透亮空腔影。气管及支气管分支通畅。双肺门、双侧腋窝及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。左侧胸膜局部稍增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，未见明显异常密度灶，增强扫描未见异常强化影。肝内胆管正常，其内未见结石影，胆囊大小正常，其内见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态未见异常，密度均匀。双肾见多发囊性灶，最大约为17MM×13MM，边界清，增强扫描未见强化，部分平扫呈稍高密度。双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。左侧侧胸壁见不规则片状影，边界不清，较前未见明显变化。左侧肩胛骨前方见一类圆形脂肪密度影，大小约18MM×16MM，边界清。T12椎体见一结节状高密度灶，长径约13MM，较前稍增大；左侧第4、5肋腋段骨质中断。余所见骨质结构未见明显破坏征象。</t>
+    <t>左下肺癌楔形切除术后、化疗及靶向治疗后,和2016-06-14片对比:左下肺条片影,考虑术后改变可能性大,较前未见明显变化。右肺中叶及左下肺近胸膜结节灶,较前新增,可疑转移瘤。右肺上叶尖段小斑片稍高密度灶,较前稍增多。左肺上叶下舌段、右下肺斑片灶,考虑纤维灶。右下肺肺大泡。胆囊结石。双肾囊肿,部分复发性囊肿。T12椎体高密度灶,较前稍增大,可疑转移瘤。左侧侧胸壁不规则片状影,考虑术后改变。左侧肩胛骨前方脂肪瘤,较前相仿。左下肺癌楔形切除术后、化疗及靶向治疗后,和2016-06-14片对比:双肺纹理清晰,左肺下叶背段及后基底段见不规则条片影,边界欠清,邻近胸膜牵拉,较前未见明显变化。右肺上叶尖段见2个小斑片稍高密度灶,边界欠清,大者直径约6MM,较前稍增多。右肺中叶、左下肺近胸膜见多个结节灶,边界清,大者直径约7MM,增强后轻度强化。左肺上叶下舌段、右下肺见斑片灶,边界欠清。右下肺见多个含气透亮空腔影。气管及支气管分支通畅。双肺门、双侧腋窝及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。左侧胸膜局部稍增厚。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,未见明显异常密度灶,增强扫描未见异常强化影。肝内胆管正常,其内未见结石影,胆囊大小正常,其内见结石影,胆总管未见扩张,其内未见结石影。肝门区未见异常。门静脉未见异常。脾大小正常,密度均匀。胰腺大小、形态未见异常,密度均匀。双肾见多发囊性灶,最大约为17MM×13MM,边界清,增强扫描未见强化,部分平扫呈稍高密度。双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。左侧侧胸壁见不规则片状影,边界不清,较前未见明显变化。左侧肩胛骨前方见一类圆形脂肪密度影,大小约18MM×16MM,边界清。T12椎体见一结节状高密度灶,长径约13MM,较前稍增大;左侧第4、5肋腋段骨质中断。余所见骨质结构未见明显破坏征象。</t>
   </si>
   <si>
     <t>右肺中叶,左下肺近胸膜,T12椎体</t>
   </si>
   <si>
-    <t>左肺癌综合治疗后，对比2014-6-10片：左肺下叶近肺门区见一不规则形软组织灶，边界不清，密度不均，边缘毛糙，可见分叶，增强扫描不均匀强化，与邻近不张肺组织分界不清，左肺上叶、左肺下叶纵隔旁可见大片状密影，边界欠清，密度不均匀，内可见充气支气管影，范围较前未见明显变化，密度较前未见明显变化。近膈肌处见片状高密度灶，边界欠清，密度不均，与膈面及胸膜关系密切，增强扫描轻度强化，范围较前未见明显变化。双上肺见散在小斑片影、类结节，边界欠清，较前未见明显变化。右下肺见一结节，大小约3MM×2MM，较前无明显改变。气管及支气管分支通畅。双侧胸腔未见积液，双侧胸膜局部轻度增厚。血管前、右下气管旁、主动脉旁、隆突下多个淋巴结，大者短径约6MM，增强见不均匀强化，较前未见明显变化。双肺门各见一淋巴结，大者短径约7MM，增强后轻度强化，较前未见明显变化。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，S4见一低密度影，大小约17MM×12MM，边界清，增强扫描未见强化，较前未见明显变化。肝内胆管未见扩张，胆囊大小未见异常，其内见多个致密灶。胆总管未见扩张。肝门区未见肿大淋巴结。门静脉未见充盈缺损。脾大小未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。左肾上极见一大小为13MM×11MM低密度灶，边界清，增强后未见明显强化。所见右肾大小、形态正常，密度未见明显异常，左侧肾上腺局部稍增厚，右侧肾上腺大小、形态、密度未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。第3、4胸椎椎体、第9胸椎右侧椎板可见结节状及片状致密区，椎旁未见明显软组织肿物影，较前未见明显变化。左肺癌综合治疗后，对比2014-6-10片：左下肺肿块与左肺纵隔旁炎性病变分界不清，范围较前未见明显变化。近膈肌处片状高密度灶，范围较前变化不大。左上肺大片密影，考虑炎症性改变。双上肺散在斑片灶，右肺小结节灶，较前未见明显变化。肝囊肿、左肾囊肿。胆囊多发结石。第3、4胸椎体、第9胸椎右侧椎板致密灶，考虑转移瘤，较前未见明显变化。</t>
+    <t>左肺癌综合治疗后,对比2014-6-10片:左肺下叶近肺门区见一不规则形软组织灶,边界不清,密度不均,边缘毛糙,可见分叶,增强扫描不均匀强化,与邻近不张肺组织分界不清,左肺上叶、左肺下叶纵隔旁可见大片状密影,边界欠清,密度不均匀,内可见充气支气管影,范围较前未见明显变化,密度较前未见明显变化。近膈肌处见片状高密度灶,边界欠清,密度不均,与膈面及胸膜关系密切,增强扫描轻度强化,范围较前未见明显变化。双上肺见散在小斑片影、类结节,边界欠清,较前未见明显变化。右下肺见一结节,大小约3MM×2MM,较前无明显改变。气管及支气管分支通畅。双侧胸腔未见积液,双侧胸膜局部轻度增厚。血管前、右下气管旁、主动脉旁、隆突下多个淋巴结,大者短径约6MM,增强见不均匀强化,较前未见明显变化。双肺门各见一淋巴结,大者短径约7MM,增强后轻度强化,较前未见明显变化。肝脏形态未见异常,各叶比例在正常范围以内,其外形轮廓光整,密度欠均匀,S4见一低密度影,大小约17MM×12MM,边界清,增强扫描未见强化,较前未见明显变化。肝内胆管未见扩张,胆囊大小未见异常,其内见多个致密灶。胆总管未见扩张。肝门区未见肿大淋巴结。门静脉未见充盈缺损。脾大小未见异常,密度均匀。胰腺大小、形态未见异常,密度均匀。左肾上极见一大小为13MM×11MM低密度灶,边界清,增强后未见明显强化。所见右肾大小、形态正常,密度未见明显异常,左侧肾上腺局部稍增厚,右侧肾上腺大小、形态、密度未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。第3、4胸椎椎体、第9胸椎右侧椎板可见结节状及片状致密区,椎旁未见明显软组织肿物影,较前未见明显变化。左肺癌综合治疗后,对比2014-6-10片:左下肺肿块与左肺纵隔旁炎性病变分界不清,范围较前未见明显变化。近膈肌处片状高密度灶,范围较前变化不大。左上肺大片密影,考虑炎症性改变。双上肺散在斑片灶,右肺小结节灶,较前未见明显变化。肝囊肿、左肾囊肿。胆囊多发结石。第3、4胸椎体、第9胸椎右侧椎板致密灶,考虑转移瘤,较前未见明显变化。</t>
   </si>
   <si>
     <t>第3、4胸椎体、第9胸椎右侧椎板</t>
   </si>
   <si>
-    <t>左乳癌术后改变，局部未见明显肿物影。左锁上区肿大淋巴结，考虑转移，较前缩小。右中肺及左肺上叶舌段少许纤维增殖灶。不均匀脂肪肝。肝S3小囊肿。肝S6稍低密度灶，较前新发，可疑转移瘤，建议MRI检查。甲状腺右侧叶病灶，考虑结节性甲状腺肿可能大。右侧上颌窦炎症。子宫左前壁结节，考虑子宫肌瘤，较前未见明显变化。腰1椎体骨质改变，考虑转移瘤，较前未见明显变化。骶1椎体左份稍高密度结节，较前未见明显变化。腰椎退行性改变。左乳癌术后复查，对比2017-02-23、2017-02-28CT片：左乳术后缺失，左前胸壁未见明确结节肿物影。右乳未见明确肿物。左锁上区见多发肿大淋巴结，部分相互融合，最大约20MM×18MM，增强后不均匀明显强化，较前缩小。余颈部未见肿大淋巴结。双侧腋窝及内乳区未见明确肿大淋巴结。右肺中叶内侧段、左肺上叶舌段见少许条索状影，边界清晰，与胸膜相连；余肺清晰，肺内未见实质性病变。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚。肝脏形态正常，各叶比例在正常范围以内，轮廓光整，密度不均匀性减低。肝S3见一小圆形低密度灶，大者直径约4MM，边界清，无强化。肝S6见一类圆形低密度灶，大小约7MM×6MM，增强扫描似见轻度强化，较前新发。肝内胆管、胆总管未见扩张，内未见结石。胆囊大小正常，内未见结石。肝门区正常。门静脉未见异常。脾、胰腺大小、形态正常，密度均匀。双肾、双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。甲状腺右侧叶见类圆形稍低密度结节，直径约5MM，增强后轻度强化，大致同前。喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。双侧颌下腺、腮腺大小形态正常，密度均匀。右侧上颌窦粘膜增厚。膀胱充盈良好，境界清楚。子宫左前壁见一类圆形结节，大小约21MM×19MM，密度尚均匀，增强后轻中度强化，较前相仿。子宫颈大小、形态未见异常。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。腰1椎体见类圆形致密灶，直径约18MM，边界模糊，较前相仿；骶1左侧份见小结节状致密灶，直径约5MM，边界尚清，较前未见明显变化。扫描层面中L2-5、S1椎体边缘骨质增生，L5椎体上缘见骨赘形成。</t>
+    <t>左乳癌术后改变,局部未见明显肿物影。左锁上区肿大淋巴结,考虑转移,较前缩小。右中肺及左肺上叶舌段少许纤维增殖灶。不均匀脂肪肝。肝S3小囊肿。肝S6稍低密度灶,较前新发,可疑转移瘤,建议MRI检查。甲状腺右侧叶病灶,考虑结节性甲状腺肿可能大。右侧上颌窦炎症。子宫左前壁结节,考虑子宫肌瘤,较前未见明显变化。腰1椎体骨质改变,考虑转移瘤,较前未见明显变化。骶1椎体左份稍高密度结节,较前未见明显变化。腰椎退行性改变。左乳癌术后复查,对比2017-02-23、2017-02-28CT片:左乳术后缺失,左前胸壁未见明确结节肿物影。右乳未见明确肿物。左锁上区见多发肿大淋巴结,部分相互融合,最大约20MM×18MM,增强后不均匀明显强化,较前缩小。余颈部未见肿大淋巴结。双侧腋窝及内乳区未见明确肿大淋巴结。右肺中叶内侧段、左肺上叶舌段见少许条索状影,边界清晰,与胸膜相连;余肺清晰,肺内未见实质性病变。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚。肝脏形态正常,各叶比例在正常范围以内,轮廓光整,密度不均匀性减低。肝S3见一小圆形低密度灶,大者直径约4MM,边界清,无强化。肝S6见一类圆形低密度灶,大小约7MM×6MM,增强扫描似见轻度强化,较前新发。肝内胆管、胆总管未见扩张,内未见结石。胆囊大小正常,内未见结石。肝门区正常。门静脉未见异常。脾、胰腺大小、形态正常,密度均匀。双肾、双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。甲状腺右侧叶见类圆形稍低密度结节,直径约5MM,增强后轻度强化,大致同前。喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。双侧颌下腺、腮腺大小形态正常,密度均匀。右侧上颌窦粘膜增厚。膀胱充盈良好,境界清楚。子宫左前壁见一类圆形结节,大小约21MM×19MM,密度尚均匀,增强后轻中度强化,较前相仿。子宫颈大小、形态未见异常。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。腰1椎体见类圆形致密灶,直径约18MM,边界模糊,较前相仿;骶1左侧份见小结节状致密灶,直径约5MM,边界尚清,较前未见明显变化。扫描层面中L2-5、S1椎体边缘骨质增生,L5椎体上缘见骨赘形成。</t>
   </si>
   <si>
     <t>肝S6,腰1椎体</t>
   </si>
   <si>
-    <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像：脑部PET图像示脑皮质及双侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂明显增宽；中线结构居中。眼眶部PET/CT图像示眶内结构及其糖代谢未见明显异常。鼻咽部、咽旁间隙、副鼻窦结构及其糖代谢均未见明显异常。颈部PET/CT图像示右锁骨上见糖代谢异常增高的肿大淋巴结，大小为17.0MM×10.7MM，最大SUV值为双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示两肺野透亮度增高，内见多发薄壁囊状透亮影，左肺上叶舌段及下叶背段各见一糖代谢异常增高的厚壁空洞，大小分别为29.7MM×27.4MM、13.6MM×12.2MM，最大SUV值分别为12.12、4.77，所示空洞呈偏心性，边缘毛糙，周围伴细毛刺，与相邻胸膜牵拉，两肺叶另见无明显糖代谢的斑片影及纤维索条影，部分小叶间隔增厚；腔静脉气管间、右侧内乳、心膈角见多枚糖代谢异常增高的淋巴结，糖代谢最高者大小为12.1MM×6.7MM，最大SUV值为3.88，双侧腋窝见多发糖代谢异常增高的肿大淋巴结，最大者大小为22.4MM×5.5MM，最大SUV值为3.99，余处未见明显糖代谢异常增高灶及占位性病变；双侧胸腔无积液；心脏不大。腹部PET/CT图像见腹腔及后腹膜多发糖代谢异常增高的肿大淋巴结，最大者大小为21.5MM×18.5MM，最大SUV值为10.15，膈脚后见糖代谢异常增高的肿大淋巴结，大小为18.9MM×17.1MM，最大SUV值为5.55，脾脏体积增大伴糖代谢异常增高，最大SUV值为5.74，胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、双肾上腺、肾、输尿管等处未见明显糖代谢异常增高灶及占位性病变；腹腔无积液。盆部PET/CT图像示左侧盆壁见多发串珠状糖代谢异常增高的肿大淋巴结，最大者大小为45.3MM×27.8MM，最大SUV值为12.32，双侧腹股沟见多发糖代谢异常增高的肿大淋巴结，最大者大小为24.2MM×12.8MM，最大SUV值为4.24；膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；前列腺、生殖器等处未见明显异常糖代谢增强灶及占位性病变；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见异常。全身PET/CT显像示：考虑左肺MT(2枚)伴右锁骨上、纵隔、内乳、心膈角、腋窝、膈脚后、腹腔、后腹膜、盆腔、腹股沟多发淋巴结转移可能，淋巴瘤广泛累及不除外，请结合临床；脾脏增大伴糖代谢异常增高，考虑与患者发热相关可能，肿瘤累及不除外；两肺气肿伴肺大泡；两肺间质性炎症。</t>
+    <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像:脑部PET图像示脑皮质及双侧基底节、丘脑、小脑放射性分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂明显增宽;中线结构居中。眼眶部PET/CT图像示眶内结构及其糖代谢未见明显异常。鼻咽部、咽旁间隙、副鼻窦结构及其糖代谢均未见明显异常。颈部PET/CT图像示右锁骨上见糖代谢异常增高的肿大淋巴结,大小为17.0MM×10.7MM,最大SUV值为双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结;口咽、喉咽部无占位;甲状腺无肿大,未见明显占位。胸部PET/CT图像示两肺野透亮度增高,内见多发薄壁囊状透亮影,左肺上叶舌段及下叶背段各见一糖代谢异常增高的厚壁空洞,大小分别为29.7MM×27.4MM、13.6MM×12.2MM,最大SUV值分别为12.12、4.77,所示空洞呈偏心性,边缘毛糙,周围伴细毛刺,与相邻胸膜牵拉,两肺叶另见无明显糖代谢的斑片影及纤维索条影,部分小叶间隔增厚;腔静脉气管间、右侧内乳、心膈角见多枚糖代谢异常增高的淋巴结,糖代谢最高者大小为12.1MM×6.7MM,最大SUV值为3.88,双侧腋窝见多发糖代谢异常增高的肿大淋巴结,最大者大小为22.4MM×5.5MM,最大SUV值为3.99,余处未见明显糖代谢异常增高灶及占位性病变;双侧胸腔无积液;心脏不大。腹部PET/CT图像见腹腔及后腹膜多发糖代谢异常增高的肿大淋巴结,最大者大小为21.5MM×18.5MM,最大SUV值为10.15,膈脚后见糖代谢异常增高的肿大淋巴结,大小为18.9MM×17.1MM,最大SUV值为5.55,脾脏体积增大伴糖代谢异常增高,最大SUV值为5.74,胃壁均匀性轻度生理性糖代谢增强;肠道呈线型生理性糖代谢增强;肝、胆囊、胰、双肾上腺、肾、输尿管等处未见明显糖代谢异常增高灶及占位性病变;腹腔无积液。盆部PET/CT图像示左侧盆壁见多发串珠状糖代谢异常增高的肿大淋巴结,最大者大小为45.3MM×27.8MM,最大SUV值为12.32,双侧腹股沟见多发糖代谢异常增高的肿大淋巴结,最大者大小为24.2MM×12.8MM,最大SUV值为4.24;膀胱内大量放射性生理性积聚;肠道呈线型生理性糖代谢增强;前列腺、生殖器等处未见明显异常糖代谢增强灶及占位性病变;盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见异常。全身PET/CT显像示:考虑左肺MT(2枚)伴右锁骨上、纵隔、内乳、心膈角、腋窝、膈脚后、腹腔、后腹膜、盆腔、腹股沟多发淋巴结转移可能,淋巴瘤广泛累及不除外,请结合临床;脾脏增大伴糖代谢异常增高,考虑与患者发热相关可能,肿瘤累及不除外;两肺气肿伴肺大泡;两肺间质性炎症。</t>
   </si>
   <si>
     <t>左肺上叶舌段及下叶背段</t>
@@ -2447,7 +2447,7 @@
     <t>右锁骨上,纵隔,内乳,心膈角,腋窝,膈脚后,腹腔,后腹膜,盆腔,腹股沟多发淋巴结</t>
   </si>
   <si>
-    <t>1.结合临床，前纵膈小细胞癌治疗后，请结合前片；纵膈、双侧锁骨上、右肺门淋巴结转移；双肺、胸膜转移；膈脚后淋巴结肿大2.右肾上腺区结节灶，建议观察3.左侧胸腔积液，左侧膈肌上提前纵膈可见类三角形软组织密度肿块影，约3.4CM×3.6CM，增强扫描呈明显不均匀强化，与邻近纵膈内软组织分界不清，纵膈内3A区、4R、9L区及双锁骨上、右肺门示结节灶，大者短径约1.4CM。双肺及双侧胸膜、叶间胸膜散在多发结节灶，大者直径约1.0CM。左侧膈肌明显上提。左胸腔内可见弧形液性密度影胸膜显示不均匀增厚、强化。肝脏形态不规则，实质密度均匀，胆囊、胰腺、脾及双肾、双肾上腺未见异常。右肾上腺区示结节灶，约0.8CM×1.3CM。膈脚后示数个结节灶，大者短径约0.8CM。</t>
+    <t>1.结合临床,前纵膈小细胞癌治疗后,请结合前片;纵膈、双侧锁骨上、右肺门淋巴结转移;双肺、胸膜转移;膈脚后淋巴结肿大2.右肾上腺区结节灶,建议观察3.左侧胸腔积液,左侧膈肌上提前纵膈可见类三角形软组织密度肿块影,约3.4CM×3.6CM,增强扫描呈明显不均匀强化,与邻近纵膈内软组织分界不清,纵膈内3A区、4R、9L区及双锁骨上、右肺门示结节灶,大者短径约1.4CM。双肺及双侧胸膜、叶间胸膜散在多发结节灶,大者直径约1.0CM。左侧膈肌明显上提。左胸腔内可见弧形液性密度影胸膜显示不均匀增厚、强化。肝脏形态不规则,实质密度均匀,胆囊、胰腺、脾及双肾、双肾上腺未见异常。右肾上腺区示结节灶,约0.8CM×1.3CM。膈脚后示数个结节灶,大者短径约0.8CM。</t>
   </si>
   <si>
     <t>左侧膈肌上提前纵膈</t>
@@ -2459,7 +2459,7 @@
     <t>纵膈,双侧锁骨上,右肺门淋巴结,双肺,胸膜</t>
   </si>
   <si>
-    <t>胰腺体部见稍低密度团块，大小约4.0CM×2.47CM，动态增强后强化程度较低，胰管未见明显扩张，胰尾部实质萎缩密度减低，脾血管穿行病灶段显示欠清。肝脏表面光滑，各叶比例匀称，内见多枚稍低密度灶，大者长径约22MM，动态增强后呈边缘强化为主，其中肝左内叶一枚病灶动脉期明显强化，延迟后强化程度仍高于肝实质，肝内血管分布均匀，走向自然，未见狭窄或充盈缺损；脾脏未见肿大，密度均匀；胆管未见扩张；胰腺及所见左侧肾脏无殊；右肾见囊状无强化灶；后腹膜见多发稍大淋巴结；前列腺稍大伴点状致密影；膀胱充盈欠佳，未见明显异常；盆腹腔内无积液。胰体部MT伴脾血管受侵，肝内多发转移灶，肝左内叶血管瘤，较16-12-26MMR片基本相仿；后腹膜多发稍大淋巴结；右肾囊肿；前列腺稍增大伴钙化。</t>
+    <t>胰腺体部见稍低密度团块,大小约4.0CM×2.47CM,动态增强后强化程度较低,胰管未见明显扩张,胰尾部实质萎缩密度减低,脾血管穿行病灶段显示欠清。肝脏表面光滑,各叶比例匀称,内见多枚稍低密度灶,大者长径约22MM,动态增强后呈边缘强化为主,其中肝左内叶一枚病灶动脉期明显强化,延迟后强化程度仍高于肝实质,肝内血管分布均匀,走向自然,未见狭窄或充盈缺损;脾脏未见肿大,密度均匀;胆管未见扩张;胰腺及所见左侧肾脏无殊;右肾见囊状无强化灶;后腹膜见多发稍大淋巴结;前列腺稍大伴点状致密影;膀胱充盈欠佳,未见明显异常;盆腹腔内无积液。胰体部MT伴脾血管受侵,肝内多发转移灶,肝左内叶血管瘤,较16-12-26MMR片基本相仿;后腹膜多发稍大淋巴结;右肾囊肿;前列腺稍增大伴钙化。</t>
   </si>
   <si>
     <t>胰体部</t>
@@ -2468,7 +2468,7 @@
     <t>4.0CM×2.47CM</t>
   </si>
   <si>
-    <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。双侧上颌窦内见软组织密度影，考虑为慢性炎症；余副鼻窦未见明显异常。颈部PET/CT图像示双侧锁骨区多发糖代谢异常增高的淋巴结，较显著者位于左侧，大小约为15.6MM×11.5MM，最大SUV值为11.5；双侧颈部、口咽、喉咽部无殊；甲状腺无肿大，左叶见直径约为2.5MM的低密度结节，不伴糖代谢异常增高，右叶无殊。胸部PET/CT图像示纵隔内左锁骨下动脉旁、双侧气管食管沟、气管前间隙、血管前间隙、主动脉窗、主动脉弓旁、隆突下、食管旁、右肺门多发糖代谢异常增高的淋巴结，较显著者位于腔静脉气管间隙，大小约为23.9MM×13.6MM，最大SUV值为12.6；右肺下叶内基底段糖代谢异常增高的占位，大小约为39.8MM×30.6MM，边缘欠光整，与邻近胸膜分界不清，最大SUV值为19.7；两肺上叶见数枚微小结节，两肺见少许条索、条片影，均无明显糖代谢异常增高；双侧胸膜局部增厚；双侧胸腔无积液；心脏无明显增大；双侧腋窝无殊。腹部PET图像示胃壁呈生理性糖代谢增强；肠道呈生理性糖代谢增强；肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内未见明显占位；肝内外胆管无扩张；右肾下极见直径约为8.0MM稍高密度结节；脾脏、胆囊、胰、左肾、双肾上腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈，壁光滑无增厚；双侧精囊腺形态可；双侧膀胱精囊三角对称；前列腺饱满，内见点状钙化；盆腔内未见占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示胸骨、双侧多根肋骨、双侧锁骨、肩胛骨、右侧肱骨上段、脊柱多处、骨盆多处、双侧股骨上段多发骨质破坏或骨质密度不均，伴糖代谢异常增高，糖代谢最高者位于右侧髂骨，最大SUV值为10.0。考虑为右肺下叶MT侵犯毗邻胸膜，伴纵隔、右肺门、双侧锁骨区多发淋巴结转移，全身多处骨转移；两肺上叶微小结节，请随访；两肺慢性炎症；甲状腺左叶良性病变，请结合超声检查；右肾复杂囊肿。</t>
+    <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼外肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。双侧上颌窦内见软组织密度影,考虑为慢性炎症;余副鼻窦未见明显异常。颈部PET/CT图像示双侧锁骨区多发糖代谢异常增高的淋巴结,较显著者位于左侧,大小约为15.6MM×11.5MM,最大SUV值为11.5;双侧颈部、口咽、喉咽部无殊;甲状腺无肿大,左叶见直径约为2.5MM的低密度结节,不伴糖代谢异常增高,右叶无殊。胸部PET/CT图像示纵隔内左锁骨下动脉旁、双侧气管食管沟、气管前间隙、血管前间隙、主动脉窗、主动脉弓旁、隆突下、食管旁、右肺门多发糖代谢异常增高的淋巴结,较显著者位于腔静脉气管间隙,大小约为23.9MM×13.6MM,最大SUV值为12.6;右肺下叶内基底段糖代谢异常增高的占位,大小约为39.8MM×30.6MM,边缘欠光整,与邻近胸膜分界不清,最大SUV值为19.7;两肺上叶见数枚微小结节,两肺见少许条索、条片影,均无明显糖代谢异常增高;双侧胸膜局部增厚;双侧胸腔无积液;心脏无明显增大;双侧腋窝无殊。腹部PET图像示胃壁呈生理性糖代谢增强;肠道呈生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整,各叶比例匀称,实质内未见明显占位;肝内外胆管无扩张;右肾下极见直径约为8.0MM稍高密度结节;脾脏、胆囊、胰、左肾、双肾上腺无殊;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚;肠道呈生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈,壁光滑无增厚;双侧精囊腺形态可;双侧膀胱精囊三角对称;前列腺饱满,内见点状钙化;盆腔内未见占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET/CT图像示胸骨、双侧多根肋骨、双侧锁骨、肩胛骨、右侧肱骨上段、脊柱多处、骨盆多处、双侧股骨上段多发骨质破坏或骨质密度不均,伴糖代谢异常增高,糖代谢最高者位于右侧髂骨,最大SUV值为10.0。考虑为右肺下叶MT侵犯毗邻胸膜,伴纵隔、右肺门、双侧锁骨区多发淋巴结转移,全身多处骨转移;两肺上叶微小结节,请随访;两肺慢性炎症;甲状腺左叶良性病变,请结合超声检查;右肾复杂囊肿。</t>
   </si>
   <si>
     <t>39.8MM×30.6MM</t>
@@ -2477,16 +2477,16 @@
     <t>纵隔,右肺门,双侧锁骨区多发淋巴结,骨</t>
   </si>
   <si>
-    <t>1.结合病史，右肺下叶癌治疗后，较2014-11-26片略小2.双肺转移，较前变化不著3.右侧胸膜转移并右侧胸腔少量积液，较前变化不著4.右肺癌性淋巴管炎，较前变化不著5.肝转移，较前好转6.骨转移，成骨性病变较前增多7.右乳癌治疗后，较前变化不著8.右腋窝淋巴结稍大，较前缩小9.右肺下叶部分不张，较前好转10.左肺炎症11.腹腔多发小淋巴结，左肺门稍大淋巴结，较前变化不著右肺下叶背段见一不规则形软组织结节，截面约1.7CM×2.2CM，边缘毛糙伴毛刺，牵拉邻近胸膜凹陷，远端见索条影及小叶间隔增厚，增强后结节呈显著不均匀强化。双肺见多发结节灶，局部呈粟粒状改变，大者长径约0.5CM。右侧胸膜，叶间胸膜亦示增厚伴多发结节灶，增强后见强化。右肺部分肺组织实变。右侧胸腔见少量液性密度影。左锁上见小淋巴结，短径约0.4CM。左肺门见稍大淋巴结，短径不足1.0CM。右乳内可见多发明显强化区。右腋窝可见肿大淋巴结，大者直径约0.8CM。肝实质内见两个低密度灶，边缘模糊，大者长径约1.6CM，增强后示强化。胆囊不大，壁不厚。胰腺、脾、双肾上腺及扫描野内双肾未见明显异常。腹腔胃小弯侧见多发小淋巴结，大者短径不足0.5CM。骨窗：扫描野内多个胸椎示混合性骨质破坏，成骨性改变为主。</t>
-  </si>
-  <si>
-    <t>左侧乳腺癌术后化疗后，对比2018-01-22CT：左侧乳腺术后缺失，左前胸壁未见明确肿物。右侧乳腺多发类结节灶，考虑转移瘤可能性大，较前稍增大。左侧腮腺、双颈、右侧锁骨上区、右侧腋窝、纵隔血管前间隙多发淋巴结，考虑转移，部分较前稍大。左肺上叶尖后段、右肺上叶尖段、右肺下叶前基底段类结节，考虑增殖灶，大致同前。甲状腺双叶及峡部类结节，结节性甲状腺肿可能，较前相仿。子宫体左前壁肌层类结节，考虑子宫肌瘤，较前相仿。左侧乳腺癌术后化疗后，对比2018-01-22CT：左侧乳腺术后缺失，左前胸壁未见明确肿物。右侧乳腺上象限见多发类结节灶，大者直径约15MM，边界欠清，部分融合，明显强化，部分较前稍增大。右锁骨上区、右侧腋窝、纵隔血管前间隙见多发淋巴结，大者短径约13MM，边界欠清，部分融合，密度欠均匀，增强扫描强化明显，较前稍大。颈部结构清晰，各血管充盈良好。甲状腺双叶及峡部体积增大，密度不均匀，见多个稍低密度灶，增强呈轻度不均匀强化，病灶内见斑点及斑片状致密灶。喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。双侧颌下腺、右侧腮腺大小形态正常，密度均匀。左侧腮腺、双颈部II-V区见多发淋巴结，边界不清，大者短径约17MM×12MM，明显强化，部分较前稍大。左肺上叶尖后段、右肺上叶尖段、右肺下叶前基底段胸膜下各见一类结节，大者直径约6MM，界清，轻度强化。气管及支气管分支通畅。双肺门及余纵隔、左侧腋窝未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚。肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，未见明显异常密度灶，增强扫描未见异常强化影。肝内胆管未见扩张，其内未见结石影，胆囊不大，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。双肾及双肾上腺大小、形态未见异常，密度均匀。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。子宫体左前壁肌层见一类结节，直径约26MM，平扫呈等密度，增强扫描强化程度低于子宫肌层。子宫颈大小、形态未见异常。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。扫描范围内骨质未见破坏征象。</t>
+    <t>1.结合病史,右肺下叶癌治疗后,较2014-11-26片略小2.双肺转移,较前变化不著3.右侧胸膜转移并右侧胸腔少量积液,较前变化不著4.右肺癌性淋巴管炎,较前变化不著5.肝转移,较前好转6.骨转移,成骨性病变较前增多7.右乳癌治疗后,较前变化不著8.右腋窝淋巴结稍大,较前缩小9.右肺下叶部分不张,较前好转10.左肺炎症11.腹腔多发小淋巴结,左肺门稍大淋巴结,较前变化不著右肺下叶背段见一不规则形软组织结节,截面约1.7CM×2.2CM,边缘毛糙伴毛刺,牵拉邻近胸膜凹陷,远端见索条影及小叶间隔增厚,增强后结节呈显著不均匀强化。双肺见多发结节灶,局部呈粟粒状改变,大者长径约0.5CM。右侧胸膜,叶间胸膜亦示增厚伴多发结节灶,增强后见强化。右肺部分肺组织实变。右侧胸腔见少量液性密度影。左锁上见小淋巴结,短径约0.4CM。左肺门见稍大淋巴结,短径不足1.0CM。右乳内可见多发明显强化区。右腋窝可见肿大淋巴结,大者直径约0.8CM。肝实质内见两个低密度灶,边缘模糊,大者长径约1.6CM,增强后示强化。胆囊不大,壁不厚。胰腺、脾、双肾上腺及扫描野内双肾未见明显异常。腹腔胃小弯侧见多发小淋巴结,大者短径不足0.5CM。骨窗:扫描野内多个胸椎示混合性骨质破坏,成骨性改变为主。</t>
+  </si>
+  <si>
+    <t>左侧乳腺癌术后化疗后,对比2018-01-22CT:左侧乳腺术后缺失,左前胸壁未见明确肿物。右侧乳腺多发类结节灶,考虑转移瘤可能性大,较前稍增大。左侧腮腺、双颈、右侧锁骨上区、右侧腋窝、纵隔血管前间隙多发淋巴结,考虑转移,部分较前稍大。左肺上叶尖后段、右肺上叶尖段、右肺下叶前基底段类结节,考虑增殖灶,大致同前。甲状腺双叶及峡部类结节,结节性甲状腺肿可能,较前相仿。子宫体左前壁肌层类结节,考虑子宫肌瘤,较前相仿。左侧乳腺癌术后化疗后,对比2018-01-22CT:左侧乳腺术后缺失,左前胸壁未见明确肿物。右侧乳腺上象限见多发类结节灶,大者直径约15MM,边界欠清,部分融合,明显强化,部分较前稍增大。右锁骨上区、右侧腋窝、纵隔血管前间隙见多发淋巴结,大者短径约13MM,边界欠清,部分融合,密度欠均匀,增强扫描强化明显,较前稍大。颈部结构清晰,各血管充盈良好。甲状腺双叶及峡部体积增大,密度不均匀,见多个稍低密度灶,增强呈轻度不均匀强化,病灶内见斑点及斑片状致密灶。喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。双侧颌下腺、右侧腮腺大小形态正常,密度均匀。左侧腮腺、双颈部II-V区见多发淋巴结,边界不清,大者短径约17MM×12MM,明显强化,部分较前稍大。左肺上叶尖后段、右肺上叶尖段、右肺下叶前基底段胸膜下各见一类结节,大者直径约6MM,界清,轻度强化。气管及支气管分支通畅。双肺门及余纵隔、左侧腋窝未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚。肝脏形态、各叶比例在正常范围以内,其外形轮廓光整,未见明显异常密度灶,增强扫描未见异常强化影。肝内胆管未见扩张,其内未见结石影,胆囊不大,其内未见结石影,胆总管未见扩张,其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大,密度均匀。胰腺大小、形态未见异常,密度均匀。双肾及双肾上腺大小、形态未见异常,密度均匀。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。膀胱充盈良好,境界清楚。子宫体左前壁肌层见一类结节,直径约26MM,平扫呈等密度,增强扫描强化程度低于子宫肌层。子宫颈大小、形态未见异常。直肠未见明显异常。双侧髂血管旁、腹股沟未见肿大淋巴结。扫描范围内骨质未见破坏征象。</t>
   </si>
   <si>
     <t>右侧乳腺,左侧腮腺,双颈,右侧锁骨上区,右侧腋窝,纵隔血管前间隙多发淋巴结</t>
   </si>
   <si>
-    <t>空腹6小时以上，静脉注射显像剂，平静休息60MMIN后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：右锁骨区、纵隔4R、7区及双肺门区见肿大伴浓聚淋巴结，部分呈融合状，较大者位于右肺门区，大小约2.2CM×1.2CM(PET测量)，放射性摄取较高者位于右锁骨区，SUVMAX7.3；右肺上叶见一软组织结节，较大径线约2.1CM×1.3CM，伴放射性摄取增高，SUVMAX8.1，病变边缘见分叶、毛刺及胸膜牵拉征，周围见多发絮状影，右肺血管束及小叶间隔增粗呈网格状及模糊结节影；另左肺见多发小结节，较大径线约0.2-0.3CM，均未见明显放射性摄取；左肺下叶见多发索条影；余肺内未见放射性浓聚灶。余纵隔及左锁骨区未见异常肿大淋巴结或淋巴结浓聚。心肌显影清晰。气管居中。胸膜无增厚，胸水征阴性。双侧肩胛骨、左侧第2肋、胸骨、左侧第9后肋、脊柱多发椎体、骨盆、双侧股骨上段见多发放射性浓聚灶，SUVMAX17.0(位于右髂骨)，同机CT局部见低密度骨质破坏区或片状密度增高影，部分骨质未见异常改变。T6椎体内见类圆形高密度结节，伴轻度放射性摄取，SUVMAX2.3。项韧带见条形钙化影。大脑形态如常，皮层各叶放射性分布均匀。皮层下各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，两侧小脑对称。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。双颈部未见明显异常淋巴结浓聚。胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝右叶见钙化灶，肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。胰腺形态放射性分布尚好，胰管不扩张。脾脏增大，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常，膀胱壁无增厚。前列腺大小正常，放射性分布大致正常。两侧腹股沟无异常淋巴结显示。右肩关节软组织放射性摄取轻度增高，SUVMAX2.3；余视野内皮肤及软组织内未见异常放射性摄取。1、①右肺上叶高代谢软组织结节，伴周围肺野炎症，符合肺癌表现；②右肺癌性淋巴管炎。左肺小结节，未见高代谢，随访。③右锁骨区、纵隔4R、7区及双肺门多发淋巴结转移。④多发骨转移。T6骨岛?建议定期随访。2、脑内未见异常代谢征象，必要时增强MRI检查，除外微小转移灶。3、左肺下叶索条影。肝右叶钙化灶。项韧带钙化。脾大。右肩关节软组织炎性或非特异性摄取。</t>
+    <t>空腹6小时以上,静脉注射显像剂,平静休息60MMIN后行全身PET及CT断层显像,PET图像经衰减校正及重建后,将PET及CT图像行多平面、多幅显示:右锁骨区、纵隔4R、7区及双肺门区见肿大伴浓聚淋巴结,部分呈融合状,较大者位于右肺门区,大小约2.2CM×1.2CM(PET测量),放射性摄取较高者位于右锁骨区,SUVMAX7.3;右肺上叶见一软组织结节,较大径线约2.1CM×1.3CM,伴放射性摄取增高,SUVMAX8.1,病变边缘见分叶、毛刺及胸膜牵拉征,周围见多发絮状影,右肺血管束及小叶间隔增粗呈网格状及模糊结节影;另左肺见多发小结节,较大径线约0.2-0.3CM,均未见明显放射性摄取;左肺下叶见多发索条影;余肺内未见放射性浓聚灶。余纵隔及左锁骨区未见异常肿大淋巴结或淋巴结浓聚。心肌显影清晰。气管居中。胸膜无增厚,胸水征阴性。双侧肩胛骨、左侧第2肋、胸骨、左侧第9后肋、脊柱多发椎体、骨盆、双侧股骨上段见多发放射性浓聚灶,SUVMAX17.0(位于右髂骨),同机CT局部见低密度骨质破坏区或片状密度增高影,部分骨质未见异常改变。T6椎体内见类圆形高密度结节,伴轻度放射性摄取,SUVMAX2.3。项韧带见条形钙化影。大脑形态如常,皮层各叶放射性分布均匀。皮层下各神经核团显影清晰,放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深,白质未见明显低密度影,中线无移位。脑室无扩大,基底节区显示对称。小脑显影如常,两侧小脑对称。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。甲状腺两叶不大,形态可,腺实质内未见异常放射性增高灶。双颈部未见明显异常淋巴结浓聚。胃充盈好,胃壁显影如常。肝脏形态可,轮廓光整,肝叶比例正常,肝右叶见钙化灶,肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常,密度均匀,胆囊壁无增厚。胰腺形态放射性分布尚好,胰管不扩张。脾脏增大,放射性分布均匀。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常,膀胱壁无增厚。前列腺大小正常,放射性分布大致正常。两侧腹股沟无异常淋巴结显示。右肩关节软组织放射性摄取轻度增高,SUVMAX2.3;余视野内皮肤及软组织内未见异常放射性摄取。1、①右肺上叶高代谢软组织结节,伴周围肺野炎症,符合肺癌表现;②右肺癌性淋巴管炎。左肺小结节,未见高代谢,随访。③右锁骨区、纵隔4R、7区及双肺门多发淋巴结转移。④多发骨转移。T6骨岛?建议定期随访。2、脑内未见异常代谢征象,必要时增强MRI检查,除外微小转移灶。3、左肺下叶索条影。肝右叶钙化灶。项韧带钙化。脾大。右肩关节软组织炎性或非特异性摄取。</t>
   </si>
   <si>
     <t>2.1CM×1.3CM</t>
@@ -2495,19 +2495,19 @@
     <t>右锁骨区,纵隔4R,7区及双肺门多发淋巴结,骨</t>
   </si>
   <si>
-    <t>肝脏表面光滑，各叶比例匀称，肝内见多发微小低密度结节灶，直径均小于1CM，增强后可见边缘强化；肝右后叶另见低密度小结节，增强后动脉期可见边缘结节样强化，门脉期向中央填充，呈高密度，肝内血管未见狭窄或充盈缺损；脾脏未见肿大，密度均匀；胆管未见扩张；胰腺及右肾无殊，左肾内见囊性无强化灶；后腹膜未见肿大淋巴结；腹盆腔内无积液。增强后子宫后壁可见相对低密度结节影；右侧附件区囊性灶。局部骶骨骨质密度改变。乳腺MT病例：肝内多发转移灶，病灶较(17-06-19MMR)缩小；肝右叶血管瘤，骶骨骨质改变，请结合骨扫描检查；左肾囊肿，子宫肌瘤可能，右侧附件区囊性灶。</t>
+    <t>肝脏表面光滑,各叶比例匀称,肝内见多发微小低密度结节灶,直径均小于1CM,增强后可见边缘强化;肝右后叶另见低密度小结节,增强后动脉期可见边缘结节样强化,门脉期向中央填充,呈高密度,肝内血管未见狭窄或充盈缺损;脾脏未见肿大,密度均匀;胆管未见扩张;胰腺及右肾无殊,左肾内见囊性无强化灶;后腹膜未见肿大淋巴结;腹盆腔内无积液。增强后子宫后壁可见相对低密度结节影;右侧附件区囊性灶。局部骶骨骨质密度改变。乳腺MT病例:肝内多发转移灶,病灶较(17-06-19MMR)缩小;肝右叶血管瘤,骶骨骨质改变,请结合骨扫描检查;左肾囊肿,子宫肌瘤可能,右侧附件区囊性灶。</t>
   </si>
   <si>
     <t>乳腺</t>
   </si>
   <si>
-    <t>右下肺癌术后化疗后复查，对比2016-12-21片：右肺下叶术后缺失，支气管残端见少许金属影，周围肺野内见少许斑片灶，边界欠清。右中肺近膈面见少许片状影，边界清晰，内见充气支气管征，增强后呈明显强化。右上肺胸膜下见条索灶，边界清，与邻近胸膜粘连。余双肺纹理清晰，未见明确实质性病变。气管及余支气管分枝通畅，未见明显软组织肿物或受压变窄。血管前、右上气管旁及右肺门见多发肿大淋巴结，最大者约12MM×8MM，边界欠清，密度欠均匀，增强后呈明显不均匀强化，较前缩小。双侧胸腔未见积液。右侧胸膜稍增厚；左侧胸膜未见增厚。肝脏形态未见异常，其外形轮廓光整，密度欠均匀，肝S7见2个小囊性灶，较大直径约5MM，边界清晰，未见强化。肝S5、6、8见数个稍低密度灶，大者约12MM×8MM，边界欠清，增强后轻度强化。肝内胆管未见扩张，其内未见结石影。胆囊其内未见结石影。胆总管未见扩张，其内未见结石影。肝门区未见明确病变。门静脉未见异常。脾、胰腺大小、形态未见异常，密度均匀。右肾见一囊性灶，直径约8MM，边界清晰，未见强化。左肾及双肾上腺未见异常。腹膜后未见肿大淋巴结。颈双侧结构清晰，各血管充盈良好，甲状腺左叶见数个低密度结节，边界清，较大直径约2MM，增强后轻度强化。甲状腺右叶及峡部形态正常，密度均匀，未见占位性病变；喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称；双侧颌下腺、腮腺大小形态正常，密度均匀；颈双侧未见肿大淋巴结。双侧上颌窦粘膜稍增厚。左侧第7前肋见斑片状致密影，扫描所见其余骨质未见明确破坏征象。右下肺癌术后化疗后改变，术区周围斑片灶，较前相仿，考虑纤维增殖灶。右上肺胸膜索条灶，考虑炎性病变，较前相仿。右中肺节段性肺不张同前。血管前、右上气管旁及右肺门肿大淋巴结，考虑转移，较前缩小。肝S5、6、8稍低密度灶，较前稍增大、增多，考虑转移可能性大。肝S7小囊肿同前。右肾囊肿。甲状腺左叶低密度结节，考虑结节性甲状腺肿可能性大。双侧上颌窦炎。左侧第7前肋致密影，较前相仿，考虑良性病变可能性大。。</t>
+    <t>右下肺癌术后化疗后复查,对比2016-12-21片:右肺下叶术后缺失,支气管残端见少许金属影,周围肺野内见少许斑片灶,边界欠清。右中肺近膈面见少许片状影,边界清晰,内见充气支气管征,增强后呈明显强化。右上肺胸膜下见条索灶,边界清,与邻近胸膜粘连。余双肺纹理清晰,未见明确实质性病变。气管及余支气管分枝通畅,未见明显软组织肿物或受压变窄。血管前、右上气管旁及右肺门见多发肿大淋巴结,最大者约12MM×8MM,边界欠清,密度欠均匀,增强后呈明显不均匀强化,较前缩小。双侧胸腔未见积液。右侧胸膜稍增厚;左侧胸膜未见增厚。肝脏形态未见异常,其外形轮廓光整,密度欠均匀,肝S7见2个小囊性灶,较大直径约5MM,边界清晰,未见强化。肝S5、6、8见数个稍低密度灶,大者约12MM×8MM,边界欠清,增强后轻度强化。肝内胆管未见扩张,其内未见结石影。胆囊其内未见结石影。胆总管未见扩张,其内未见结石影。肝门区未见明确病变。门静脉未见异常。脾、胰腺大小、形态未见异常,密度均匀。右肾见一囊性灶,直径约8MM,边界清晰,未见强化。左肾及双肾上腺未见异常。腹膜后未见肿大淋巴结。颈双侧结构清晰,各血管充盈良好,甲状腺左叶见数个低密度结节,边界清,较大直径约2MM,增强后轻度强化。甲状腺右叶及峡部形态正常,密度均匀,未见占位性病变;喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称;双侧颌下腺、腮腺大小形态正常,密度均匀;颈双侧未见肿大淋巴结。双侧上颌窦粘膜稍增厚。左侧第7前肋见斑片状致密影,扫描所见其余骨质未见明确破坏征象。右下肺癌术后化疗后改变,术区周围斑片灶,较前相仿,考虑纤维增殖灶。右上肺胸膜索条灶,考虑炎性病变,较前相仿。右中肺节段性肺不张同前。血管前、右上气管旁及右肺门肿大淋巴结,考虑转移,较前缩小。肝S5、6、8稍低密度灶,较前稍增大、增多,考虑转移可能性大。肝S7小囊肿同前。右肾囊肿。甲状腺左叶低密度结节,考虑结节性甲状腺肿可能性大。双侧上颌窦炎。左侧第7前肋致密影,较前相仿,考虑良性病变可能性大。。</t>
   </si>
   <si>
     <t>血管前、右上气管旁及右肺门肿大淋巴结,肝S5、6、8</t>
   </si>
   <si>
-    <t>右肺上叶后段见一不规则结节影，大小约2.1CM×2.0CM，边缘见浅分叶及短毛刺，内见细支气管充气，邻近胸膜牵拉，右肺上叶(IM26)见一小结节状钙化，右肺上叶(IM27)及左下肺(IM37)见小结节灶，较大约0.6CM，边缘清晰；两下肺见少许斑片索条影，所见各支气管腔通畅，纵隔内未见肿大淋巴结，两侧胸膜稍增厚，胸腔内无积液，甲状腺右侧叶明显增大，密度不均匀，内见钙化，气管明显受压左移。冠脉钙化。冠脉走行区致密影。右上肺MT，两肺小结节，同2018-03-22片大致相仿；两肺少许慢性炎症及陈旧灶；冠脉病变。甲状腺右叶病变伴气管受压左移，请结合超声。</t>
+    <t>右肺上叶后段见一不规则结节影,大小约2.1CM×2.0CM,边缘见浅分叶及短毛刺,内见细支气管充气,邻近胸膜牵拉,右肺上叶(IM26)见一小结节状钙化,右肺上叶(IM27)及左下肺(IM37)见小结节灶,较大约0.6CM,边缘清晰;两下肺见少许斑片索条影,所见各支气管腔通畅,纵隔内未见肿大淋巴结,两侧胸膜稍增厚,胸腔内无积液,甲状腺右侧叶明显增大,密度不均匀,内见钙化,气管明显受压左移。冠脉钙化。冠脉走行区致密影。右上肺MT,两肺小结节,同2018-03-22片大致相仿;两肺少许慢性炎症及陈旧灶;冠脉病变。甲状腺右叶病变伴气管受压左移,请结合超声。</t>
   </si>
   <si>
     <t>右肺上叶后段</t>
@@ -2516,13 +2516,13 @@
     <t>2.1CM×2.0CM</t>
   </si>
   <si>
-    <t>右乳癌术后：右侧腋窝、右侧侧胸壁、右侧第4、5肋间多发结节，考虑转移瘤。右侧腋窝类圆形低密度灶，考虑术后包裹性积液可能性大。双肺多发转移瘤。上腹部未见明确病变。双颈、双锁上小淋巴结。右乳癌术后：右侧乳腺术后缺失，右侧腋窝右侧侧胸壁、右侧第4、5肋间见多发结节，边界不清，相互融合，大小难以测量，增强扫描呈不均匀明显强化。右侧腋窝见2个类圆形低密度灶，较大者约46MM×40MM，边界清晰，增强扫描边缘轻度强化。双肺各叶见弥漫分布多发结节，最大者约15MM×15MM，大部分见空洞形成，增强扫描呈轻度强化。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜未见增厚、粘连。肝脏形态、各叶比例未见异常，其外形轮廓光整，密度均匀，增强扫描未见异常强化灶。肝内外胆管未见异常，其内未见结石，胆囊未见异常。肝门区未见异常。门静脉未见异常。脾脏、胰腺大小、形态、密度未见异常，增强扫描未见异常强化。双肾及双肾上腺未见异常。腹主动脉旁未见肿大淋巴结。喉咽腔形态未见异常，双侧梨状窝对称。双侧真假声带未见增厚，前联合未见增厚。双侧颌下腺、腮腺大小形态未见异常，密度均匀。甲状腺双叶及峡部形态未见异常，密度均匀，未见占位性病变。双颈I~V区、双锁上见数个小淋巴结，最大者约10MM×7MM，边界清晰，增强扫描呈轻度强化。扫描范围内所见骨质未见明确破坏征象。</t>
+    <t>右乳癌术后:右侧腋窝、右侧侧胸壁、右侧第4、5肋间多发结节,考虑转移瘤。右侧腋窝类圆形低密度灶,考虑术后包裹性积液可能性大。双肺多发转移瘤。上腹部未见明确病变。双颈、双锁上小淋巴结。右乳癌术后:右侧乳腺术后缺失,右侧腋窝右侧侧胸壁、右侧第4、5肋间见多发结节,边界不清,相互融合,大小难以测量,增强扫描呈不均匀明显强化。右侧腋窝见2个类圆形低密度灶,较大者约46MM×40MM,边界清晰,增强扫描边缘轻度强化。双肺各叶见弥漫分布多发结节,最大者约15MM×15MM,大部分见空洞形成,增强扫描呈轻度强化。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜未见增厚、粘连。肝脏形态、各叶比例未见异常,其外形轮廓光整,密度均匀,增强扫描未见异常强化灶。肝内外胆管未见异常,其内未见结石,胆囊未见异常。肝门区未见异常。门静脉未见异常。脾脏、胰腺大小、形态、密度未见异常,增强扫描未见异常强化。双肾及双肾上腺未见异常。腹主动脉旁未见肿大淋巴结。喉咽腔形态未见异常,双侧梨状窝对称。双侧真假声带未见增厚,前联合未见增厚。双侧颌下腺、腮腺大小形态未见异常,密度均匀。甲状腺双叶及峡部形态未见异常,密度均匀,未见占位性病变。双颈I~V区、双锁上见数个小淋巴结,最大者约10MM×7MM,边界清晰,增强扫描呈轻度强化。扫描范围内所见骨质未见明确破坏征象。</t>
   </si>
   <si>
     <t>右侧腋窝,右侧侧胸壁,右侧第4、5肋间,双肺</t>
   </si>
   <si>
-    <t>食管MT术后病例：考虑为胸廓入口水平吻合口右旁MT复发伴左侧锁骨区淋巴结转移，右肺斜裂转移；两肺下叶慢性炎性小结节可能，请随访；左肺上叶陈旧灶。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET/CT图像示左侧锁骨区见糖代谢异常增高的淋巴结，大小约为15.8MM×12.8MM，最大SUV值为25.9；双侧颈部、右侧锁骨区无明显糖代谢异常增高及肿大淋巴结；口咽、喉咽部无殊；甲状腺无肿大，未见糖代谢异常增高及占位。胸部PET/CT图像示食管MT术后，右侧胸腔胃，吻合口见金属缝线影，胸廓入口水平吻合口右旁见糖代谢异常增高的肿块影，大小约为22.5MM×15.5MM，最大SUV值为26.1；余纵隔无糖代谢异常增高及肿大淋巴结；右肺斜裂处见糖代谢异常增高的呈融合状的结节，大小约为25.3MM×14.0MM，最大SUV值为11.9；右肺下叶后基底段见糖代谢增高的结节，大小约为15.8MM×10.3MM，最大SUV值为2.2；左肺下叶后基底段及右肺下叶前基底段另见直径5.0MM以下的微小结节，未见明显糖代谢异常增高；左肺上叶见钙化灶；各级支气管腔通畅；双肺门影不大；双侧胸腔无积液；心脏无明显增大；双侧腋窝无糖代谢异常增高及肿大淋巴结。腹部PET图像示胃壁呈生理性糖代谢增强；肠道呈生理性糖代谢增强；肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内未见明显占位；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；胆囊、胰、双肾、肾上腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚；肠道呈生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁光滑无增厚；双侧精囊腺形态可；双侧膀胱精囊三角对称；前列腺饱满，内见钙化灶；盆腔内未见占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见糖代谢异常增高。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示部分颈、胸、腰、骶椎体边缘及椎小关节骨质增生，考虑为退行性变。</t>
+    <t>食管MT术后病例:考虑为胸廓入口水平吻合口右旁MT复发伴左侧锁骨区淋巴结转移,右肺斜裂转移;两肺下叶慢性炎性小结节可能,请随访;左肺上叶陈旧灶。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼外肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET/CT图像示左侧锁骨区见糖代谢异常增高的淋巴结,大小约为15.8MM×12.8MM,最大SUV值为25.9;双侧颈部、右侧锁骨区无明显糖代谢异常增高及肿大淋巴结;口咽、喉咽部无殊;甲状腺无肿大,未见糖代谢异常增高及占位。胸部PET/CT图像示食管MT术后,右侧胸腔胃,吻合口见金属缝线影,胸廓入口水平吻合口右旁见糖代谢异常增高的肿块影,大小约为22.5MM×15.5MM,最大SUV值为26.1;余纵隔无糖代谢异常增高及肿大淋巴结;右肺斜裂处见糖代谢异常增高的呈融合状的结节,大小约为25.3MM×14.0MM,最大SUV值为11.9;右肺下叶后基底段见糖代谢增高的结节,大小约为15.8MM×10.3MM,最大SUV值为2.2;左肺下叶后基底段及右肺下叶前基底段另见直径5.0MM以下的微小结节,未见明显糖代谢异常增高;左肺上叶见钙化灶;各级支气管腔通畅;双肺门影不大;双侧胸腔无积液;心脏无明显增大;双侧腋窝无糖代谢异常增高及肿大淋巴结。腹部PET图像示胃壁呈生理性糖代谢增强;肠道呈生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整,各叶比例匀称,实质内未见明显占位;肝内外胆管无扩张;脾脏不大,密度均,未见明显占位;胆囊、胰、双肾、肾上腺无殊;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚;肠道呈生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁光滑无增厚;双侧精囊腺形态可;双侧膀胱精囊三角对称;前列腺饱满,内见钙化灶;盆腔内未见占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET图像未见糖代谢异常增高。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗示部分颈、胸、腰、骶椎体边缘及椎小关节骨质增生,考虑为退行性变。</t>
   </si>
   <si>
     <t>食管</t>
@@ -2531,7 +2531,7 @@
     <t>左侧锁骨区淋巴结,右肺斜裂</t>
   </si>
   <si>
-    <t>双侧胸廓对称，肺野透过度不均，右肺下叶后段见软组织密度团块影，大小约4.8CM×3.7CM，右肺下叶后基底段支气管截断，病灶周围可见血管集束征，与邻近胸膜粘连，周围肺野散在多发条片影。右侧胸腔内见少量积液征象，胸壁见引流管影。双肺见多发大小不等结节影，大者径约0.5CM。左侧支气管通畅。纵隔居中，右肺门及纵隔内见多发肿大淋巴结。心脏大小正常。所示部分胸椎骨质欠规整，边缘清楚。1.右肺下叶占位性病变，考虑周围型肺癌可能伴纵隔及右肺门淋巴结转移，请结合临床；2.双肺多发小结节，考虑转移瘤可能，随诊；3.右侧胸腔积液引流术后；4.所示部分胸椎骨质骨质破坏，转移可能。</t>
+    <t>双侧胸廓对称,肺野透过度不均,右肺下叶后段见软组织密度团块影,大小约4.8CM×3.7CM,右肺下叶后基底段支气管截断,病灶周围可见血管集束征,与邻近胸膜粘连,周围肺野散在多发条片影。右侧胸腔内见少量积液征象,胸壁见引流管影。双肺见多发大小不等结节影,大者径约0.5CM。左侧支气管通畅。纵隔居中,右肺门及纵隔内见多发肿大淋巴结。心脏大小正常。所示部分胸椎骨质欠规整,边缘清楚。1.右肺下叶占位性病变,考虑周围型肺癌可能伴纵隔及右肺门淋巴结转移,请结合临床;2.双肺多发小结节,考虑转移瘤可能,随诊;3.右侧胸腔积液引流术后;4.所示部分胸椎骨质骨质破坏,转移可能。</t>
   </si>
   <si>
     <t>4.8CM×3.7CM</t>
@@ -2540,7 +2540,7 @@
     <t>双肺,胸椎,纵隔及右肺门淋巴结</t>
   </si>
   <si>
-    <t>1.结合临床，卵巢癌术后2.右肺上叶占位，考虑为中心型肺癌伴阻塞性炎症，侵及右肺动脉，右肺门、纵隔、右侧锁骨上淋巴结转移3.脑转移4.左肺门淋巴结肿大，建议观察5.肝囊肿右肺上叶支气管截断，局部见一软组织密度肿块，大小约3.3CM×2.6CM，病变远端右肺上叶见实变的肺组织影，增强后轻度强化，局部包埋右肺动脉。双肺门10区、纵隔内4R、7区、8R、9R、4R、4L、5区、2R、3A、右侧锁骨上1R见多发增大淋巴结，部分相互融合，大者短径约2.0CM。双侧胸腔内未见液性密度影。肝脏形态、大小可，实质内见囊性密度灶，大者直径约2.3CM，边缘清晰。肝内外胆管未见扩张。胆囊充盈可，壁不厚。胰腺走行自然，形态、大小、密度未见异常。脾、双肾及肾上腺形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。子宫及双侧附件术后缺失，阴道残端未见显著增厚。膀胱充盈好，壁略示增厚。盆腔内未见显著增大淋巴结。盆腔内未见液性密度影。左侧额叶见一直径约1.9CM结节灶，边缘清晰，增强后显著不均匀强化。病变周围见片状低密度水肿带。颅骨未见显著骨质破坏。</t>
+    <t>1.结合临床,卵巢癌术后2.右肺上叶占位,考虑为中心型肺癌伴阻塞性炎症,侵及右肺动脉,右肺门、纵隔、右侧锁骨上淋巴结转移3.脑转移4.左肺门淋巴结肿大,建议观察5.肝囊肿右肺上叶支气管截断,局部见一软组织密度肿块,大小约3.3CM×2.6CM,病变远端右肺上叶见实变的肺组织影,增强后轻度强化,局部包埋右肺动脉。双肺门10区、纵隔内4R、7区、8R、9R、4R、4L、5区、2R、3A、右侧锁骨上1R见多发增大淋巴结,部分相互融合,大者短径约2.0CM。双侧胸腔内未见液性密度影。肝脏形态、大小可,实质内见囊性密度灶,大者直径约2.3CM,边缘清晰。肝内外胆管未见扩张。胆囊充盈可,壁不厚。胰腺走行自然,形态、大小、密度未见异常。脾、双肾及肾上腺形态、大小、密度未见异常。腹腔及腹膜后未见增大淋巴结。子宫及双侧附件术后缺失,阴道残端未见显著增厚。膀胱充盈好,壁略示增厚。盆腔内未见显著增大淋巴结。盆腔内未见液性密度影。左侧额叶见一直径约1.9CM结节灶,边缘清晰,增强后显著不均匀强化。病变周围见片状低密度水肿带。颅骨未见显著骨质破坏。</t>
   </si>
   <si>
     <t>卵巢,右肺上叶</t>
@@ -2552,13 +2552,13 @@
     <t>右肺门,纵隔,右侧锁骨上淋巴结,脑</t>
   </si>
   <si>
-    <t>左肺下叶近后胸壁下示大片状低密度区，内示斑片状气体影，边界欠清，其下方可见不张肺组织，两者分界不清，不张肺组织内可见低密度粘液栓影，左肺门区部分支气管管腔显示不清。左肺近心包旁示直径约2.2CM软组织密度结节灶(5-46)，边界较清，强化较均，局部与心包相贴。左肺上叶、右肺下叶示小结节灶(5-24、49)，密度较低，增强局部可见强化，边界较清。余双肺示小类结节灶(5-23、28、36)。左侧胸膜略增厚。左侧锁骨上、纵隔内双上气管旁、腔静脉后气管前间隙、主肺动脉窗区、隆突下及左肺门示小或增大淋巴结，大者短径约1.6CM，部分呈不均质强化。心包及左侧胸腔示少许液性密度影。肝右叶近包膜下示长径约0.9CM低密度灶，边界欠清。另肝内示斑片状致密影。左肾示长径约1.3CM低密度灶，边界欠清。胆囊壁略增厚。胰腺、脾及双侧肾上腺未见明确异常。腹腔腹膜后未见肿大淋巴结。左侧肱骨、部分椎骨示溶骨性、成骨性破坏。1.结合临床，考虑左肺癌并阻塞性肺不张、左侧锁骨上、左肺门及纵隔淋巴结转移；骨转移。2.左肺心包旁结节灶，转移及原发不易鉴别，请结合其他检查。3.双肺小结节灶，转移不除外；双肺小类结节灶，建议观察。4.左侧胸膜略增厚。5.心包及左侧胸腔少量积液。6.肝及左肾低密度灶，请结合前片或观察除外转移。7.肝内钙化灶。</t>
+    <t>左肺下叶近后胸壁下示大片状低密度区,内示斑片状气体影,边界欠清,其下方可见不张肺组织,两者分界不清,不张肺组织内可见低密度粘液栓影,左肺门区部分支气管管腔显示不清。左肺近心包旁示直径约2.2CM软组织密度结节灶(5-46),边界较清,强化较均,局部与心包相贴。左肺上叶、右肺下叶示小结节灶(5-24、49),密度较低,增强局部可见强化,边界较清。余双肺示小类结节灶(5-23、28、36)。左侧胸膜略增厚。左侧锁骨上、纵隔内双上气管旁、腔静脉后气管前间隙、主肺动脉窗区、隆突下及左肺门示小或增大淋巴结,大者短径约1.6CM,部分呈不均质强化。心包及左侧胸腔示少许液性密度影。肝右叶近包膜下示长径约0.9CM低密度灶,边界欠清。另肝内示斑片状致密影。左肾示长径约1.3CM低密度灶,边界欠清。胆囊壁略增厚。胰腺、脾及双侧肾上腺未见明确异常。腹腔腹膜后未见肿大淋巴结。左侧肱骨、部分椎骨示溶骨性、成骨性破坏。1.结合临床,考虑左肺癌并阻塞性肺不张、左侧锁骨上、左肺门及纵隔淋巴结转移;骨转移。2.左肺心包旁结节灶,转移及原发不易鉴别,请结合其他检查。3.双肺小结节灶,转移不除外;双肺小类结节灶,建议观察。4.左侧胸膜略增厚。5.心包及左侧胸腔少量积液。6.肝及左肾低密度灶,请结合前片或观察除外转移。7.肝内钙化灶。</t>
   </si>
   <si>
     <t>双肺,左侧锁骨上,左肺门及纵隔淋巴结,骨,左肺心包旁</t>
   </si>
   <si>
-    <t>直肠上动脉旁及直肠系膜可见多发小淋巴结，较大约6MM×5MM(SE4IM1)，数目小于7枚。双侧髂血管旁及腹股沟可见少许小淋巴结，较大约12MM×4MM(SE4IM15)。直肠下段可见溃疡型病变，肠壁不规则增厚，较厚处约13MM(SE4IM31)，增强扫描明显均可见强化，病变侵透肌层，外膜面毛糙，直肠系膜内可见多发索条影，邻近前缘可见结节状灶(SE4IM29)，与阴道后壁关系密切，下缘达肛提肌与直肠交界水平，与肛门内括约肌分界不清，与双侧肛提肌、肛门外括约肌分界尚清。子宫前倾位，宫颈可见多发长T1长T2信号灶，边清无强化，较大约10MM×9MM(SE4IM16)，子宫肌层可见短T2信号灶，较大约13MM×11MM(SE3IM13)，增强扫描强化同子宫肌层。双侧附件区未见异常。膀胱充盈差，膀胱壁未见异常增厚。盆腔少量积液。扫及诸骨骨质未见破坏征象。直肠下段占位，考虑直肠癌，肛门内括约肌受累，侵犯阴道待排。直肠上动脉旁及直肠系膜多发小淋巴结，转移不除外。子宫肌瘤，宫颈多发纳囊。盆腔少量积液。</t>
+    <t>直肠上动脉旁及直肠系膜可见多发小淋巴结,较大约6MM×5MM(SE4IM1),数目小于7枚。双侧髂血管旁及腹股沟可见少许小淋巴结,较大约12MM×4MM(SE4IM15)。直肠下段可见溃疡型病变,肠壁不规则增厚,较厚处约13MM(SE4IM31),增强扫描明显均可见强化,病变侵透肌层,外膜面毛糙,直肠系膜内可见多发索条影,邻近前缘可见结节状灶(SE4IM29),与阴道后壁关系密切,下缘达肛提肌与直肠交界水平,与肛门内括约肌分界不清,与双侧肛提肌、肛门外括约肌分界尚清。子宫前倾位,宫颈可见多发长T1长T2信号灶,边清无强化,较大约10MM×9MM(SE4IM16),子宫肌层可见短T2信号灶,较大约13MM×11MM(SE3IM13),增强扫描强化同子宫肌层。双侧附件区未见异常。膀胱充盈差,膀胱壁未见异常增厚。盆腔少量积液。扫及诸骨骨质未见破坏征象。直肠下段占位,考虑直肠癌,肛门内括约肌受累,侵犯阴道待排。直肠上动脉旁及直肠系膜多发小淋巴结,转移不除外。子宫肌瘤,宫颈多发纳囊。盆腔少量积液。</t>
   </si>
   <si>
     <t>直肠下段</t>
@@ -2570,19 +2570,19 @@
     <t>直肠上动脉旁及直肠系膜多发小淋巴结</t>
   </si>
   <si>
-    <t>右乳腺癌治疗后复查，对比2016-11-25片：乳腺癌治疗后，左侧前胸壁局部皮肤结节状、条片状增厚，考虑复发，较前缩小。左侧前胸壁皮下结节，较前稍缩小。右侧乳腺多发肿块，考虑转移，较前缩小。右侧腋窝、胸骨上窝多发肿大淋巴结，考虑转移，较前缩小。隆突下淋巴结，较前缩小，考虑转移可能性大。肝S4小囊性病变，较前稍缩小。左肾囊肿。左肺上叶病变，考虑放射性肺炎。双侧锁骨头、胸骨及多发椎体骨质破坏，考虑转移瘤，部分病灶较前稍增大。右侧第1、2前肋、第6~8肋腋段不同程度骨质破坏，考虑转移可能性大，较前变化不明显。右乳腺癌治疗后复查，对比2016-11-25片：左侧乳腺术后缺失，左侧前胸壁局部皮肤呈条片状增厚，最大约35MM×5MM，较前缩小。左侧前胸壁皮下(SE5-15)见一结节影，大小约6MM×5MM，可见强化，较前稍缩小。左侧腋窝见少许条索影，未见肿大淋巴结。右侧乳腺见多个不均匀强化结节，边界欠清，大者约23MM×12MM，较前缩小。右侧腋窝、胸骨上窝多发肿大淋巴结，最大约21MM×18MM，边界欠清，密度不均匀，增强后不均匀轻中度强化，较前缩小。左上肺近前胸壁处见散在小斑片灶，边界欠清，较前相仿，余肺未见实质性病变。气管及支气管分支通畅，未见明显软组织肿物或受压变窄。隆突下见一稍大淋巴结，大小约12MM×6MM，不均匀强化，较前稍缩小。双侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态、各叶比例未见异常，轮廓欠光整；肝S4见一小囊性病变，直径约3MM，增强扫描未见强化，较前缩小。肝内胆管正常，其内未见结石影，胆囊不大，内未见结石，胆总管未见扩张，其内未见结石影。肝门区、门静脉所见正常。脾大小正常，密度均匀，脾门区见一结节影，直径约4MM，密度与强化方式与脾脏相似。胰腺大小、形态正常，密度均匀。左肾见类圆形囊性灶，直径约7MM，边界清楚，未见强化。右肾、双肾上腺未见异常。腹主动脉旁未见明显肿大淋巴结。胸骨、双侧锁骨头见不规则骨质破坏，周围见软组织肿块形成，增强扫描轻度强化，较前变化不明显。扫描范围内多个椎体内见类圆形、结节样骨质密度增高灶，边界模糊，密度欠均匀，与前片对比，部分病灶范围较前增大。右侧第1、2前肋、第6~8肋腋段见不同程度骨质破坏，大致同前。</t>
+    <t>右乳腺癌治疗后复查,对比2016-11-25片:乳腺癌治疗后,左侧前胸壁局部皮肤结节状、条片状增厚,考虑复发,较前缩小。左侧前胸壁皮下结节,较前稍缩小。右侧乳腺多发肿块,考虑转移,较前缩小。右侧腋窝、胸骨上窝多发肿大淋巴结,考虑转移,较前缩小。隆突下淋巴结,较前缩小,考虑转移可能性大。肝S4小囊性病变,较前稍缩小。左肾囊肿。左肺上叶病变,考虑放射性肺炎。双侧锁骨头、胸骨及多发椎体骨质破坏,考虑转移瘤,部分病灶较前稍增大。右侧第1、2前肋、第6~8肋腋段不同程度骨质破坏,考虑转移可能性大,较前变化不明显。右乳腺癌治疗后复查,对比2016-11-25片:左侧乳腺术后缺失,左侧前胸壁局部皮肤呈条片状增厚,最大约35MM×5MM,较前缩小。左侧前胸壁皮下(SE5-15)见一结节影,大小约6MM×5MM,可见强化,较前稍缩小。左侧腋窝见少许条索影,未见肿大淋巴结。右侧乳腺见多个不均匀强化结节,边界欠清,大者约23MM×12MM,较前缩小。右侧腋窝、胸骨上窝多发肿大淋巴结,最大约21MM×18MM,边界欠清,密度不均匀,增强后不均匀轻中度强化,较前缩小。左上肺近前胸壁处见散在小斑片灶,边界欠清,较前相仿,余肺未见实质性病变。气管及支气管分支通畅,未见明显软组织肿物或受压变窄。隆突下见一稍大淋巴结,大小约12MM×6MM,不均匀强化,较前稍缩小。双侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态、各叶比例未见异常,轮廓欠光整;肝S4见一小囊性病变,直径约3MM,增强扫描未见强化,较前缩小。肝内胆管正常,其内未见结石影,胆囊不大,内未见结石,胆总管未见扩张,其内未见结石影。肝门区、门静脉所见正常。脾大小正常,密度均匀,脾门区见一结节影,直径约4MM,密度与强化方式与脾脏相似。胰腺大小、形态正常,密度均匀。左肾见类圆形囊性灶,直径约7MM,边界清楚,未见强化。右肾、双肾上腺未见异常。腹主动脉旁未见明显肿大淋巴结。胸骨、双侧锁骨头见不规则骨质破坏,周围见软组织肿块形成,增强扫描轻度强化,较前变化不明显。扫描范围内多个椎体内见类圆形、结节样骨质密度增高灶,边界模糊,密度欠均匀,与前片对比,部分病灶范围较前增大。右侧第1、2前肋、第6~8肋腋段见不同程度骨质破坏,大致同前。</t>
   </si>
   <si>
     <t>右侧乳腺,右侧腋窝、胸骨上窝多发肿大淋巴结,隆突下淋巴结,双侧锁骨头,胸骨,椎体,右侧第1、2前肋,第6~8肋腋段</t>
   </si>
   <si>
-    <t>空腹6H以上，静脉注射18F-FDG，静息约60MMIN后行全身PET/CT断层显像，影像清晰。右乳腺癌术后：右侧乳腺缺如。左侧乳腺放射性分布未见明显异常。右中肺近肺门肿块影放射性浓聚，SUV约17.5，大小约2.9CM×4.9CM。右中肺不张，放射性略浓密。双肺多个结节及小斑片影放射性浓聚，SUV最高约16.9，最大约1.5CM×2.7CM。纵隔右上、双下气管旁、主动脉旁、主动脉下、隆突下、食管旁及双肺门多个淋巴结放射性浓聚，SUV最高约18.4，最大约1.3CM×1.9CM。左腋窝数个淋巴结放射性浓聚，SUV最高约8.6，最大约0.8CM×0.8CM。右侧腋窝未见肿大淋巴结及异常放射性分布。右侧胸腔积液。所见双侧脑实质密度、形态正常，放射性分布均匀、对称，诸脑室、脑池、脑沟、脑裂未见异常，中线结构居中。鼻咽、口咽及喉咽结构及放射性分布未见明显异常。额窦、蝶窦、筛窦及双侧上颌窦结构及放射性分布未见明显异常。甲状腺放射性分布未见异常。双上颈小淋巴结放射性分布未见明显异常。右锁上数个淋巴结放射性浓聚，SUV最高约16.2，最大约1.6CM×1.6CM。肝脏数个结节放射性浓聚，SUV最高约17.6，最大约1.9CM×1.9CM。肝内、外胆管未见扩张。胆囊、胃及十二指肠放射性分布未见明显异常。右肾上腺增粗，放射性浓聚，SUV约15.0。左肾上腺略增粗，放射性浓密。右肾盂点状钙化影放射性缺损，CT值约325HU。脾脏、胰腺、左肾形态、结构及放射性分布未见异常。肝门区淋巴结放射性浓聚，SUV约16.6，大小约2.0CM×2.5CM。腹腔见数个结节影，放射性浓聚，SUV最高约9.5，最大约0.8CM×0.8CM，局部与周围肠管分界不清。双侧附件区囊状低密度影放射性稀疏。膀胱、子宫及肠管等形态、结构及放射性分布未见明显异常。双髂血管旁及双腹股沟未见肿大淋巴结及异常放射性分布。蝶骨、枕骨、左锁骨、双侧部分肋骨、双侧肩胛骨、胸骨、多个颈椎、胸椎、腰椎、骶骨、双侧盆骨、双侧肱骨及双侧股骨见多个放射性浓聚灶，SUV最高约23.9，局部见骨质破坏，局部见软组织形成，以胸骨体为甚。右胸大肌及前下腹壁皮下数个结节放射性浓密，最大约0.6CM×0.6CM。右乳腺癌术后，术区代谢未见明显异常。右中肺病灶代谢活跃，考虑恶性病变，原发可能性大；右锁上、纵隔、双肺门、左腋窝及肝门区多个淋巴结代谢活跃，双肺多发病灶代谢活跃，肝脏多发病灶代谢活跃，右肾上腺病灶代谢活跃，全身多发骨病灶代谢活跃，腹腔数个结节代谢活跃，考虑转移瘤；右胸大肌及前下腹壁皮下数个结节代谢较活跃，疑转移瘤；左肾上腺略增粗，代谢较活跃，转移瘤待排；右侧胸腔积液。右肾盂小结石。双侧附件区囊状低密度影代谢低下，疑生理性改变。</t>
+    <t>空腹6H以上,静脉注射18F-FDG,静息约60MMIN后行全身PET/CT断层显像,影像清晰。右乳腺癌术后:右侧乳腺缺如。左侧乳腺放射性分布未见明显异常。右中肺近肺门肿块影放射性浓聚,SUV约17.5,大小约2.9CM×4.9CM。右中肺不张,放射性略浓密。双肺多个结节及小斑片影放射性浓聚,SUV最高约16.9,最大约1.5CM×2.7CM。纵隔右上、双下气管旁、主动脉旁、主动脉下、隆突下、食管旁及双肺门多个淋巴结放射性浓聚,SUV最高约18.4,最大约1.3CM×1.9CM。左腋窝数个淋巴结放射性浓聚,SUV最高约8.6,最大约0.8CM×0.8CM。右侧腋窝未见肿大淋巴结及异常放射性分布。右侧胸腔积液。所见双侧脑实质密度、形态正常,放射性分布均匀、对称,诸脑室、脑池、脑沟、脑裂未见异常,中线结构居中。鼻咽、口咽及喉咽结构及放射性分布未见明显异常。额窦、蝶窦、筛窦及双侧上颌窦结构及放射性分布未见明显异常。甲状腺放射性分布未见异常。双上颈小淋巴结放射性分布未见明显异常。右锁上数个淋巴结放射性浓聚,SUV最高约16.2,最大约1.6CM×1.6CM。肝脏数个结节放射性浓聚,SUV最高约17.6,最大约1.9CM×1.9CM。肝内、外胆管未见扩张。胆囊、胃及十二指肠放射性分布未见明显异常。右肾上腺增粗,放射性浓聚,SUV约15.0。左肾上腺略增粗,放射性浓密。右肾盂点状钙化影放射性缺损,CT值约325HU。脾脏、胰腺、左肾形态、结构及放射性分布未见异常。肝门区淋巴结放射性浓聚,SUV约16.6,大小约2.0CM×2.5CM。腹腔见数个结节影,放射性浓聚,SUV最高约9.5,最大约0.8CM×0.8CM,局部与周围肠管分界不清。双侧附件区囊状低密度影放射性稀疏。膀胱、子宫及肠管等形态、结构及放射性分布未见明显异常。双髂血管旁及双腹股沟未见肿大淋巴结及异常放射性分布。蝶骨、枕骨、左锁骨、双侧部分肋骨、双侧肩胛骨、胸骨、多个颈椎、胸椎、腰椎、骶骨、双侧盆骨、双侧肱骨及双侧股骨见多个放射性浓聚灶,SUV最高约23.9,局部见骨质破坏,局部见软组织形成,以胸骨体为甚。右胸大肌及前下腹壁皮下数个结节放射性浓密,最大约0.6CM×0.6CM。右乳腺癌术后,术区代谢未见明显异常。右中肺病灶代谢活跃,考虑恶性病变,原发可能性大;右锁上、纵隔、双肺门、左腋窝及肝门区多个淋巴结代谢活跃,双肺多发病灶代谢活跃,肝脏多发病灶代谢活跃,右肾上腺病灶代谢活跃,全身多发骨病灶代谢活跃,腹腔数个结节代谢活跃,考虑转移瘤;右胸大肌及前下腹壁皮下数个结节代谢较活跃,疑转移瘤;左肾上腺略增粗,代谢较活跃,转移瘤待排;右侧胸腔积液。右肾盂小结石。双侧附件区囊状低密度影代谢低下,疑生理性改变。</t>
   </si>
   <si>
     <t>双肺,肝脏,右肾上腺,左肾上腺,肝门区淋巴结,腹腔,骨,胸大肌,腹壁皮下</t>
   </si>
   <si>
-    <t>考虑为右肺下叶前基底段周围型MT伴右侧肺门淋巴结转移可能，纵隔气管隆突下淋巴结转移不除外，请结合临床；两肺胸膜旁慢性炎性结节可能，请随访；两肺轻度气肿；肝脏多发囊肿；胆囊结石；左肾小囊肿。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。筛窦、双侧蝶窦和上颌窦粘膜增厚，考虑为炎症。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，密度欠均匀。胸部PET/CT图像示右肺下叶前基底段见大小约为20.0MM×15.5MM、糖代谢增高的软组织结节，平均CT值约为17.4HU，最大SUV值约为7.1，边缘见细小毛刺，牵拉毗邻斜裂；两肺上叶和右肺下叶胸膜旁见数枚小结节，较大者位于右肺下叶前基底段胸膜旁，形态不规则，长径约为5.5MM，最大SUV值约为0.6；两肺另见少许透亮无纹理区；右侧肺门见数枚糖代谢增高的淋巴结，糖代谢较高者大小约为10.0MM×9.0MM，平均CT值约为34.2HU，最大SUV值约为6.5；纵隔气管隆突下右主支气管旁见大小约为10.0MM×6.6MM、糖代谢增高的淋巴结，平均CT值约为39.5HU，最大SUV值约为4.5；左肺门无殊；双侧胸腔无积液；心脏无明显增大；双侧腋窝无明显糖代谢异常增高和肿大淋巴结。腹部PET/CT图像示肝脏表面光整，各叶比例匀称，肝脏实质内见数枚囊性灶，较大者位于右后下叶，大小约为15.5MM×11.0MM，平均CT值约为16.0HU，最大SUV值约为1.3；肝内外胆管无扩张；胆囊内见致密小结节；左肾上极见直径约为6.0MM囊性低密度灶，平均CT值约为10.3HU，最大SUV值约为1.5；胃壁呈生理性糖代谢增强；肠道内见显像剂生理性积聚；脾脏、胰、双肾上腺、右肾和双输尿管未见明显糖代谢异常增高和占位；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚；肠道内见显像剂生理性积聚；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示双侧精囊腺形态可；双侧膀胱精囊三角对称；前列腺饱满伴钙化；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见糖代谢异常增高。平扫骨窗示诸骨未见明显骨质破坏吸收征象；脊椎椎骨缘和小关节骨质增生；脊柱侧弯。</t>
+    <t>考虑为右肺下叶前基底段周围型MT伴右侧肺门淋巴结转移可能,纵隔气管隆突下淋巴结转移不除外,请结合临床;两肺胸膜旁慢性炎性结节可能,请随访;两肺轻度气肿;肝脏多发囊肿;胆囊结石;左肾小囊肿。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼外肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。筛窦、双侧蝶窦和上颌窦粘膜增厚,考虑为炎症。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结;口咽、喉咽部无占位;甲状腺无肿大,密度欠均匀。胸部PET/CT图像示右肺下叶前基底段见大小约为20.0MM×15.5MM、糖代谢增高的软组织结节,平均CT值约为17.4HU,最大SUV值约为7.1,边缘见细小毛刺,牵拉毗邻斜裂;两肺上叶和右肺下叶胸膜旁见数枚小结节,较大者位于右肺下叶前基底段胸膜旁,形态不规则,长径约为5.5MM,最大SUV值约为0.6;两肺另见少许透亮无纹理区;右侧肺门见数枚糖代谢增高的淋巴结,糖代谢较高者大小约为10.0MM×9.0MM,平均CT值约为34.2HU,最大SUV值约为6.5;纵隔气管隆突下右主支气管旁见大小约为10.0MM×6.6MM、糖代谢增高的淋巴结,平均CT值约为39.5HU,最大SUV值约为4.5;左肺门无殊;双侧胸腔无积液;心脏无明显增大;双侧腋窝无明显糖代谢异常增高和肿大淋巴结。腹部PET/CT图像示肝脏表面光整,各叶比例匀称,肝脏实质内见数枚囊性灶,较大者位于右后下叶,大小约为15.5MM×11.0MM,平均CT值约为16.0HU,最大SUV值约为1.3;肝内外胆管无扩张;胆囊内见致密小结节;左肾上极见直径约为6.0MM囊性低密度灶,平均CT值约为10.3HU,最大SUV值约为1.5;胃壁呈生理性糖代谢增强;肠道内见显像剂生理性积聚;脾脏、胰、双肾上腺、右肾和双输尿管未见明显糖代谢异常增高和占位;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚;肠道内见显像剂生理性积聚;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示双侧精囊腺形态可;双侧膀胱精囊三角对称;前列腺饱满伴钙化;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET图像未见糖代谢异常增高。平扫骨窗示诸骨未见明显骨质破坏吸收征象;脊椎椎骨缘和小关节骨质增生;脊柱侧弯。</t>
   </si>
   <si>
     <t>右肺下叶前基底段</t>
@@ -2591,19 +2591,19 @@
     <t>20.0MM×15.5MM</t>
   </si>
   <si>
-    <t>1.考虑右肺下叶肺癌，并双肺、右胸膜多发转移；较前CT(2016-04-01)右肺下叶肿块影略增大，余较前片相仿；2.心包少量积液，较前相仿；3.甲状腺改变，请结合临床。右肺下叶可见不规则软组织密度影，与右肺门分界不清，边缘毛糙，分叶状，长径约为2.0CM×1.6CM，右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影，部分边缘毛糙；纵隔内未见增大淋巴结影。心包内见少许液性密度影。甲状腺增大。</t>
+    <t>1.考虑右肺下叶肺癌,并双肺、右胸膜多发转移;较前CT(2016-04-01)右肺下叶肿块影略增大,余较前片相仿;2.心包少量积液,较前相仿;3.甲状腺改变,请结合临床。右肺下叶可见不规则软组织密度影,与右肺门分界不清,边缘毛糙,分叶状,长径约为2.0CM×1.6CM,右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影,部分边缘毛糙;纵隔内未见增大淋巴结影。心包内见少许液性密度影。甲状腺增大。</t>
   </si>
   <si>
     <t>2.0CM×1.6CM</t>
   </si>
   <si>
-    <t>左肺上叶MT术后病例：左侧锁骨区、纵隔淋巴结转移；全身多处骨转移；左肺门术后改变可能，请结合临床随访；两肺多发磨玻璃结节，考虑为MT可能；两肺多发实性小结节，考虑为慢性炎性结节可能；两肺陈旧灶；两肺气肿；左侧胸腔积液；肝脏囊肿；前列腺增生伴钙化；膀胱肿瘤综合治疗后，未见明显肿瘤复发征象；左侧腮腺良性病变可能，请结合超声检查。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑未见明显糖代谢异常。CT平扫示双侧基底节区见多发点状低密度灶，考虑为腔梗灶；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。左侧上颌窦粘膜增厚，考虑为慢性炎症。颈部PET/CT图像示左侧腮腺内糖代谢异常增高的稍高密度结节，大小约为16.4MM×12.0MM，最大SUV值约为6.1；左侧锁骨区见糖代谢异常增高的淋巴结，大小约为11.7MM×10.4MM，最大SUV值约为6.4；口咽、喉咽部无占位；甲状腺未见明显糖代谢异常增高和占位。胸部PET/CT图像示左肺上叶术后缺如，左肺门术区见高密度缝线影伴糖代谢轻度增高，最大SUV值约为3.8；两肺多发不伴糖代谢异常增高的磨玻璃结节，较大者位于右肺上叶前段，大小约为6.0MM×5.6MM；两肺另见多发不伴糖代谢异常增高的实性小结节，直径均小于5.0MM；两肺透亮度增高，见多发纤维索条影；腔静脉气管间、主肺动脉窗及右肺门见糖代谢异常增高的淋巴结，较大且糖代谢较高者位于腔静脉气管间，大小约为12.3MM×11.5MM，最大SUV值约为10.2；双侧胸膜局部增厚；左侧胸腔积液；心脏无明显增大；双侧腋窝无殊。腹部PET图像示胃壁呈生理性糖代谢增强；肠道呈生理性糖代谢增强；肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内见多发囊性低密度灶，较大者位于左外叶，大小约为36.6MM×34.0MM；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；胆囊、胰、双肾、肾上腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET/CT图像示早期相膀胱内见显像剂生理性积聚，延迟3.5小时显像膀胱充盈，壁光滑无增厚，前壁内见点状钙化影，膀胱壁未见明显糖代谢异常增高灶；肛管局部见糖代谢增高，最大SUV值约为6.8，考虑为生理性摄取或炎性病变；余肠道呈线型生理性糖代谢增强；双侧膀胱精囊三角对称；前列腺增大，其内见点状致密影；盆腔和双侧腹股沟未见明显糖代谢异常增高灶和占位；盆腔无积液。骨骼PET/CT图像示胸骨、第11胸椎、腰4椎体棘突及左侧髂骨见糖代谢异常增高的类圆形稍低密度影，最大SUV值约为8.1；左侧第4肋骨皮质连续性中断伴其走行区软组织糖代谢异常增高，最大SUV值约为4.1，考虑为术后改变；左侧第6前肋髓腔内环状高密度灶，不伴糖代谢异常增高，考虑为良性病变；脊柱多个椎体及椎小关节骨质增生，考虑为退行性改变。</t>
+    <t>左肺上叶MT术后病例:左侧锁骨区、纵隔淋巴结转移;全身多处骨转移;左肺门术后改变可能,请结合临床随访;两肺多发磨玻璃结节,考虑为MT可能;两肺多发实性小结节,考虑为慢性炎性结节可能;两肺陈旧灶;两肺气肿;左侧胸腔积液;肝脏囊肿;前列腺增生伴钙化;膀胱肿瘤综合治疗后,未见明显肿瘤复发征象;左侧腮腺良性病变可能,请结合超声检查。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑未见明显糖代谢异常。CT平扫示双侧基底节区见多发点状低密度灶,考虑为腔梗灶;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼外肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。左侧上颌窦粘膜增厚,考虑为慢性炎症。颈部PET/CT图像示左侧腮腺内糖代谢异常增高的稍高密度结节,大小约为16.4MM×12.0MM,最大SUV值约为6.1;左侧锁骨区见糖代谢异常增高的淋巴结,大小约为11.7MM×10.4MM,最大SUV值约为6.4;口咽、喉咽部无占位;甲状腺未见明显糖代谢异常增高和占位。胸部PET/CT图像示左肺上叶术后缺如,左肺门术区见高密度缝线影伴糖代谢轻度增高,最大SUV值约为3.8;两肺多发不伴糖代谢异常增高的磨玻璃结节,较大者位于右肺上叶前段,大小约为6.0MM×5.6MM;两肺另见多发不伴糖代谢异常增高的实性小结节,直径均小于5.0MM;两肺透亮度增高,见多发纤维索条影;腔静脉气管间、主肺动脉窗及右肺门见糖代谢异常增高的淋巴结,较大且糖代谢较高者位于腔静脉气管间,大小约为12.3MM×11.5MM,最大SUV值约为10.2;双侧胸膜局部增厚;左侧胸腔积液;心脏无明显增大;双侧腋窝无殊。腹部PET图像示胃壁呈生理性糖代谢增强;肠道呈生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整,各叶比例匀称,实质内见多发囊性低密度灶,较大者位于左外叶,大小约为36.6MM×34.0MM;肝内外胆管无扩张;脾脏不大,密度均,未见明显占位;胆囊、胰、双肾、肾上腺无殊;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET/CT图像示早期相膀胱内见显像剂生理性积聚,延迟3.5小时显像膀胱充盈,壁光滑无增厚,前壁内见点状钙化影,膀胱壁未见明显糖代谢异常增高灶;肛管局部见糖代谢增高,最大SUV值约为6.8,考虑为生理性摄取或炎性病变;余肠道呈线型生理性糖代谢增强;双侧膀胱精囊三角对称;前列腺增大,其内见点状致密影;盆腔和双侧腹股沟未见明显糖代谢异常增高灶和占位;盆腔无积液。骨骼PET/CT图像示胸骨、第11胸椎、腰4椎体棘突及左侧髂骨见糖代谢异常增高的类圆形稍低密度影,最大SUV值约为8.1;左侧第4肋骨皮质连续性中断伴其走行区软组织糖代谢异常增高,最大SUV值约为4.1,考虑为术后改变;左侧第6前肋髓腔内环状高密度灶,不伴糖代谢异常增高,考虑为良性病变;脊柱多个椎体及椎小关节骨质增生,考虑为退行性改变。</t>
   </si>
   <si>
     <t>左侧锁骨区,纵隔淋巴结,骨</t>
   </si>
   <si>
-    <t>左侧乳腺体积增大，左侧乳腺上象限及外象限见不规则团块状肿物，范围约114MM×28MM，边界不清，内见片状低密度区，增强呈不均匀强化，病灶侵犯皮肤，累及乳晕及乳头，乳腺浅筋膜深层见结节状增厚，病灶与胸大肌分界尚清。左侧腋窝、左侧锁骨下区、左侧颈部IV、V区见多发肿大淋巴结，边界不清，密度不均匀，部分融合，大者大小约54MM×35MM，增强呈不均匀强化。左侧第2、3肋间水平内乳区(SE11，IM81)见肿大淋巴结，边界尚清，大小约9MM×7MM，增强呈明显强化。右侧颈部IV区及右侧腋窝见数个小淋巴结，边界清，孤立散在，大者短径约5MM，增强呈均匀轻度强化。右侧乳腺未见明显异常密度灶及强化灶。双颈结构清晰，各血管充盈良好，甲状腺双叶及峡部形态正常，密度均匀，未见占位性病变；喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称；双侧颌下腺、腮腺大小形态正常，密度均匀。双肺纹理清晰，未见结节影；气管及支气管分枝通畅，未见明显软组织肿物或受压变窄；双侧肺门及纵隔未见明确肿大淋巴结；左侧胸腔见少量积液，右侧胸腔未见积液；胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝S2、4、7、8见多个稍低密度灶，边界不清，部分融合，大者位于肝S4，大小约51MM×43MM，增强扫描动脉期呈轻度环形强化，门脉期及平衡期强化程度减低。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影；肝门区正常；门静脉未见异常；脾大小正常，密度均匀；胰腺大小、形态正常，密度均匀；双肾及双肾上腺未见异常。腹主动脉旁见多发小淋巴结，边界欠清，大者短径约5MM，增强呈轻度强化。扫描层面未见明确骨质破坏征象。左侧乳腺病灶，考虑乳腺癌。左侧腋窝、左侧锁骨下区、左侧颈部IV、V区及左侧内乳区淋巴结，考虑转移瘤。右侧颈部IV区及右侧腋窝小淋巴结。左侧少量胸腔积液。肝内多发病灶，考虑转移瘤。腹主动脉旁多发小淋巴结，转移待排，建议随诊。</t>
+    <t>左侧乳腺体积增大,左侧乳腺上象限及外象限见不规则团块状肿物,范围约114MM×28MM,边界不清,内见片状低密度区,增强呈不均匀强化,病灶侵犯皮肤,累及乳晕及乳头,乳腺浅筋膜深层见结节状增厚,病灶与胸大肌分界尚清。左侧腋窝、左侧锁骨下区、左侧颈部IV、V区见多发肿大淋巴结,边界不清,密度不均匀,部分融合,大者大小约54MM×35MM,增强呈不均匀强化。左侧第2、3肋间水平内乳区(SE11,IM81)见肿大淋巴结,边界尚清,大小约9MM×7MM,增强呈明显强化。右侧颈部IV区及右侧腋窝见数个小淋巴结,边界清,孤立散在,大者短径约5MM,增强呈均匀轻度强化。右侧乳腺未见明显异常密度灶及强化灶。双颈结构清晰,各血管充盈良好,甲状腺双叶及峡部形态正常,密度均匀,未见占位性病变;喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称;双侧颌下腺、腮腺大小形态正常,密度均匀。双肺纹理清晰,未见结节影;气管及支气管分枝通畅,未见明显软组织肿物或受压变窄;双侧肺门及纵隔未见明确肿大淋巴结;左侧胸腔见少量积液,右侧胸腔未见积液;胸膜未见增厚。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度不均匀,肝S2、4、7、8见多个稍低密度灶,边界不清,部分融合,大者位于肝S4,大小约51MM×43MM,增强扫描动脉期呈轻度环形强化,门脉期及平衡期强化程度减低。肝内胆管正常,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影;肝门区正常;门静脉未见异常;脾大小正常,密度均匀;胰腺大小、形态正常,密度均匀;双肾及双肾上腺未见异常。腹主动脉旁见多发小淋巴结,边界欠清,大者短径约5MM,增强呈轻度强化。扫描层面未见明确骨质破坏征象。左侧乳腺病灶,考虑乳腺癌。左侧腋窝、左侧锁骨下区、左侧颈部IV、V区及左侧内乳区淋巴结,考虑转移瘤。右侧颈部IV区及右侧腋窝小淋巴结。左侧少量胸腔积液。肝内多发病灶,考虑转移瘤。腹主动脉旁多发小淋巴结,转移待排,建议随诊。</t>
   </si>
   <si>
     <t>114MM×28MM</t>
@@ -2612,7 +2612,7 @@
     <t>左侧腋窝,左侧锁骨下区,左侧颈部IV,V区及左侧内乳区淋巴结,肝,腹主动脉旁多发小淋巴结</t>
   </si>
   <si>
-    <t>胰腺尾部见一大小约3.63CM×3.1CM不规则的肿块影，呈长T1稍及等高混杂T2信号，边界模糊，增强后不均匀轻度强化，病灶中央见囊变坏死区。肝脏见多个类圆形长T1长T2信号，增强后环形强化。肝内外胆管无扩张，胆囊未见异常征象。脾脏见一直径约0.9CM椭圆形环形强化的长T1短T2信号。上腹部局部腹膜明显强化，呈片状、网格状及小结节状改变。胰尾周围及后腹膜区及大血管旁见多个稍大的淋巴结影。腹腔内及双侧胸腔见积液信号。1、胰尾癌并肝脏多发转移瘤；腹膜广泛转移；腹膜后多发淋巴转移；2、脾脏异常信号，考虑为良性病变可能性大，请随诊；3、腹腔及双侧胸腔积液。</t>
+    <t>胰腺尾部见一大小约3.63CM×3.1CM不规则的肿块影,呈长T1稍及等高混杂T2信号,边界模糊,增强后不均匀轻度强化,病灶中央见囊变坏死区。肝脏见多个类圆形长T1长T2信号,增强后环形强化。肝内外胆管无扩张,胆囊未见异常征象。脾脏见一直径约0.9CM椭圆形环形强化的长T1短T2信号。上腹部局部腹膜明显强化,呈片状、网格状及小结节状改变。胰尾周围及后腹膜区及大血管旁见多个稍大的淋巴结影。腹腔内及双侧胸腔见积液信号。1、胰尾癌并肝脏多发转移瘤;腹膜广泛转移;腹膜后多发淋巴转移;2、脾脏异常信号,考虑为良性病变可能性大,请随诊;3、腹腔及双侧胸腔积液。</t>
   </si>
   <si>
     <t>胰尾</t>
@@ -2624,10 +2624,10 @@
     <t>肝脏,腹膜,腹膜后多发淋巴</t>
   </si>
   <si>
-    <t>显像方法：静脉注射99MMTC-MIBI10分钟后应用DILON乳腺机行双侧乳腺及腋窝平面显像，RCC、LCC、RMLO、LMLO位采集信息，采集时间均为6分钟/体位。影像所见：双侧乳腺显影清晰，双侧乳腺放射性分布基本均匀，右乳上象限见放射性异常浓聚灶，RMLO：最大T/N比值约为2.1；左侧乳腺外上象限见斑片状放射性略浓聚影，LCC：最大T/N比值约为1.6，LMLO：最大T/N比值约为1.3；右侧腋窝见放射性略浓聚影，左侧腋窝未见明显放射性异常浓聚灶。乳腺99MMTC-MIBIBSGI平面显像示：右乳上象限MT；右侧腋窝淋巴结转移可能；左乳外上象限放射性略浓聚灶，结合T/N比值，考虑为良性病变，请结合临床。</t>
-  </si>
-  <si>
-    <t>右上肺前段可见团块状病灶，大小约39MM×37MM，边缘分叶，侵犯水平裂胸膜，其内密度不均匀，增强后见不均匀强化，病灶远端肺组织节段性透亮度减低，肺叶收缩，与右上肺病灶分界不清楚；病灶周围可见斑片状模糊影。右中肺胸膜下见一小结节，直径约2MM，边界清楚。右肺尖见斑片状模糊影，密度不均匀。气管及支气管分支通畅。右肺门、隆突下、右上下气管旁、血管前可见多发肿大淋巴结，最大位于右肺门，融合成团，范围约36MM×30MM，增强扫描轻度不均匀强化；右上肺动静脉被包绕，管腔狭窄，未见充盈缺损。双侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝S1可见低密度灶，大小约10MM×6MM，边界清楚，增强后未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾所见正常。双肾上腺所见正常。腹腔干周围、腹主动脉旁见小淋巴结，大者短径约7MM，边界清楚，增强均匀强化。胸12椎体见类圆形骨质密度减低区，边清，骨小梁稀疏。右上肺前段病灶，考虑肺癌。右上肺斑片影，考虑炎症。右肺门及纵隔淋巴结肿大，考虑转移。肝S1低密度灶，考虑肝囊肿。胸12椎体病灶，考虑血管瘤。</t>
+    <t>显像方法:静脉注射99MMTC-MIBI10分钟后应用DILON乳腺机行双侧乳腺及腋窝平面显像,RCC、LCC、RMLO、LMLO位采集信息,采集时间均为6分钟/体位。影像所见:双侧乳腺显影清晰,双侧乳腺放射性分布基本均匀,右乳上象限见放射性异常浓聚灶,RMLO:最大T/N比值约为2.1;左侧乳腺外上象限见斑片状放射性略浓聚影,LCC:最大T/N比值约为1.6,LMLO:最大T/N比值约为1.3;右侧腋窝见放射性略浓聚影,左侧腋窝未见明显放射性异常浓聚灶。乳腺99MMTC-MIBIBSGI平面显像示:右乳上象限MT;右侧腋窝淋巴结转移可能;左乳外上象限放射性略浓聚灶,结合T/N比值,考虑为良性病变,请结合临床。</t>
+  </si>
+  <si>
+    <t>右上肺前段可见团块状病灶,大小约39MM×37MM,边缘分叶,侵犯水平裂胸膜,其内密度不均匀,增强后见不均匀强化,病灶远端肺组织节段性透亮度减低,肺叶收缩,与右上肺病灶分界不清楚;病灶周围可见斑片状模糊影。右中肺胸膜下见一小结节,直径约2MM,边界清楚。右肺尖见斑片状模糊影,密度不均匀。气管及支气管分支通畅。右肺门、隆突下、右上下气管旁、血管前可见多发肿大淋巴结,最大位于右肺门,融合成团,范围约36MM×30MM,增强扫描轻度不均匀强化;右上肺动静脉被包绕,管腔狭窄,未见充盈缺损。双侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度欠均匀,肝S1可见低密度灶,大小约10MM×6MM,边界清楚,增强后未见强化。肝内胆管正常,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。双肾所见正常。双肾上腺所见正常。腹腔干周围、腹主动脉旁见小淋巴结,大者短径约7MM,边界清楚,增强均匀强化。胸12椎体见类圆形骨质密度减低区,边清,骨小梁稀疏。右上肺前段病灶,考虑肺癌。右上肺斑片影,考虑炎症。右肺门及纵隔淋巴结肿大,考虑转移。肝S1低密度灶,考虑肝囊肿。胸12椎体病灶,考虑血管瘤。</t>
   </si>
   <si>
     <t>右上肺前段</t>
@@ -2636,7 +2636,7 @@
     <t>39MM×37MM</t>
   </si>
   <si>
-    <t>空腹6小时以上，静脉注射显像剂，平静休息60MMIN后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：右肺上叶近肺门处见一软组织肿块，病变跨右水平裂，约5.0CM×3.4CM，边缘可见分叶及毛刺，放射性分布异常浓聚，最大SUV16.7，远端伴阻塞性条片影，右水平裂增厚。余肺内未见异常浓聚灶。纵隔3A、右肺门可见肿大且异常浓聚淋巴结，较大者位于右肺门，约2.6CM×1.7CM，最大SUV11.4；纵隔2R、4R/L、5、6、7、8及左侧肺门可见数个淋巴结，伴放射性摄取增高，较大者位于4R区，约1.5CM×0.9CM，最大SUV4.3。心肌显影。左侧胸膜无增厚，双侧胸水征阴性。右侧第一前肋胸肋关节放射性浓聚灶，最大SUV6.1；余视野内轴心骨未见异常放射性浓聚。脊柱退变。左侧股骨内骨岛。大脑形态如常，皮层各叶放射性分布均匀。皮层下各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，两侧小脑对称。口咽部见对称性放射性摄取，最大SUV5.6。鼻咽部无异常放射性浓聚。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。左颈部颈动脉鞘内可见一淋巴结，放射性摄取增高，最大SUV4.0；余颈部及锁骨上区未见明显异常淋巴结浓聚。胃充盈稍差，胃壁见弥漫性轻度摄取，最大SUV3.8。肝脏形态可，轮廓光整，肝叶比例正常，肝实质密度弥漫性减低，平扫CT值约37HU，低于同层面脾实质密度。肝S7可见稍低密度影，未见放射性浓聚。余肝实质内未见异常浓聚灶。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。左侧肾上腺体部略粗，伴轻度摄取增高，最大SUV3.1，右侧肾上腺显影大致正常。腹盆部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常，膀胱壁无增厚。前列腺大小正常，内可见点状钙化，放射性分布大致正常。两侧腹股沟无异常淋巴结显示。视野内皮肤及软组织内未见异常放射性摄取。1、右肺上叶近肺门高代谢占位，符合肺癌；病变跨右水平裂。纵隔3A区、右肺门淋巴结转移。左颈部、纵隔2R、4R/L、5、6、7、8区及左肺门淋巴结，尚需与炎性反应性淋巴结鉴别。右侧第一肋胸关节及左肾上腺代谢增高，建议随访复查。2、肝S7稍低密度影，未见高代谢，结合2017-7-25外院增强CT，考虑良性(血管瘤)。脂肪肝。3、口咽部炎性摄取；胃壁炎性或非特异性摄取；前列腺钙化；脊柱退变；左侧股骨骨岛。</t>
+    <t>空腹6小时以上,静脉注射显像剂,平静休息60MMIN后行全身PET及CT断层显像,PET图像经衰减校正及重建后,将PET及CT图像行多平面、多幅显示:右肺上叶近肺门处见一软组织肿块,病变跨右水平裂,约5.0CM×3.4CM,边缘可见分叶及毛刺,放射性分布异常浓聚,最大SUV16.7,远端伴阻塞性条片影,右水平裂增厚。余肺内未见异常浓聚灶。纵隔3A、右肺门可见肿大且异常浓聚淋巴结,较大者位于右肺门,约2.6CM×1.7CM,最大SUV11.4;纵隔2R、4R/L、5、6、7、8及左侧肺门可见数个淋巴结,伴放射性摄取增高,较大者位于4R区,约1.5CM×0.9CM,最大SUV4.3。心肌显影。左侧胸膜无增厚,双侧胸水征阴性。右侧第一前肋胸肋关节放射性浓聚灶,最大SUV6.1;余视野内轴心骨未见异常放射性浓聚。脊柱退变。左侧股骨内骨岛。大脑形态如常,皮层各叶放射性分布均匀。皮层下各神经核团显影清晰,放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深,白质未见明显低密度影,中线无移位。脑室无扩大,基底节区显示对称。小脑显影如常,两侧小脑对称。口咽部见对称性放射性摄取,最大SUV5.6。鼻咽部无异常放射性浓聚。甲状腺两叶不大,形态可,腺实质内未见异常放射性增高灶。左颈部颈动脉鞘内可见一淋巴结,放射性摄取增高,最大SUV4.0;余颈部及锁骨上区未见明显异常淋巴结浓聚。胃充盈稍差,胃壁见弥漫性轻度摄取,最大SUV3.8。肝脏形态可,轮廓光整,肝叶比例正常,肝实质密度弥漫性减低,平扫CT值约37HU,低于同层面脾实质密度。肝S7可见稍低密度影,未见放射性浓聚。余肝实质内未见异常浓聚灶。肝内外胆管无扩张。胆囊大小正常,密度均匀,胆囊壁无增厚。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。左侧肾上腺体部略粗,伴轻度摄取增高,最大SUV3.1,右侧肾上腺显影大致正常。腹盆部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常,膀胱壁无增厚。前列腺大小正常,内可见点状钙化,放射性分布大致正常。两侧腹股沟无异常淋巴结显示。视野内皮肤及软组织内未见异常放射性摄取。1、右肺上叶近肺门高代谢占位,符合肺癌;病变跨右水平裂。纵隔3A区、右肺门淋巴结转移。左颈部、纵隔2R、4R/L、5、6、7、8区及左肺门淋巴结,尚需与炎性反应性淋巴结鉴别。右侧第一肋胸关节及左肾上腺代谢增高,建议随访复查。2、肝S7稍低密度影,未见高代谢,结合2017-7-25外院增强CT,考虑良性(血管瘤)。脂肪肝。3、口咽部炎性摄取;胃壁炎性或非特异性摄取;前列腺钙化;脊柱退变;左侧股骨骨岛。</t>
   </si>
   <si>
     <t>5.0CM×3.4CM</t>
@@ -2645,7 +2645,7 @@
     <t>纵隔3A区,右肺门淋巴结</t>
   </si>
   <si>
-    <t>左肺下叶前内基底段空洞占位，代谢活跃，考虑为肺癌；纵隔7、11L区、左肺门、贲门区及胃左动脉旁转移淋巴结；肝内多发高代谢灶，考虑为转移；右枕骨、右7肋骨转移；T2左侧横突稍高代谢，随诊除外转移。脑部代谢未见明显异常征象，垂体区稍高代谢，请结合增强MRI。左乳外上象限小结节，未见高代谢，疑为良性病变，请结合超声。脂肪肝。右附件囊肿。宫内节育环。空腹6小时以上，静脉注射显像剂，平静休息60MMIN后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：左肺下叶前内基底段空洞占位，约2.1CM×1.7CM，可见分叶、毛刺及胸膜牵拉征，同机PET显示放射性摄取异常增高，最大SUVMAX值6.1；余肺未见异常密度影及浓聚灶。纵隔7、11L区、左肺门、贲门区及胃左动脉旁可见多发浓聚淋巴结，较大的约为1.9CM×1.6CM，最大SUVMAX值6.54。余纵隔及右肺门未见肿大及浓聚淋巴结。肝内可见多发浓聚灶，较大的约为CM，最大SUVMAX值5.28；余肝实质密度弥漫性减低，平扫CT值为17HU。右枕骨骨质破坏伴放射性浓聚，SUVMAX11.6；右7肋骨骨质破坏伴浓聚，最大SUVMAX值6.66；T2左侧横突摄取略高，最大SUVMAX值2.6。大脑形态如常，皮层各叶放射性分布均匀。皮层下各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，两侧小脑对称。垂体区灶状高摄取，最大SUVMAX值4.3。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。颈部及锁骨上区未见明显异常淋巴结浓聚。心肌显影浅淡。胸膜无增厚，胸水征阴性。两侧乳腺轻度显影，两侧大致对称，左侧乳腺外上象限可见小结节，约0.6CM×0.5CM，未见异常放射性摄取，余乳腺区未见异常浓聚灶。未见胸部软组织异常影像。胃充盈好，胃壁显影如常。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。腹壁软组织未见明显异常影像。膀胱放射性浓聚如常，膀胱壁无增厚。子宫体积、形态尚可，宫内可见节育环，局部无异常放射性浓聚。右附件可见囊性低密度影，放射性摄取稀疏缺损；左侧附件区未见异常放射性摄取。两侧腹股沟无异常淋巴结显示。视野内皮肤及软组织内未见异常放射性摄取。</t>
+    <t>左肺下叶前内基底段空洞占位,代谢活跃,考虑为肺癌;纵隔7、11L区、左肺门、贲门区及胃左动脉旁转移淋巴结;肝内多发高代谢灶,考虑为转移;右枕骨、右7肋骨转移;T2左侧横突稍高代谢,随诊除外转移。脑部代谢未见明显异常征象,垂体区稍高代谢,请结合增强MRI。左乳外上象限小结节,未见高代谢,疑为良性病变,请结合超声。脂肪肝。右附件囊肿。宫内节育环。空腹6小时以上,静脉注射显像剂,平静休息60MMIN后行全身PET及CT断层显像,PET图像经衰减校正及重建后,将PET及CT图像行多平面、多幅显示:左肺下叶前内基底段空洞占位,约2.1CM×1.7CM,可见分叶、毛刺及胸膜牵拉征,同机PET显示放射性摄取异常增高,最大SUVMAX值6.1;余肺未见异常密度影及浓聚灶。纵隔7、11L区、左肺门、贲门区及胃左动脉旁可见多发浓聚淋巴结,较大的约为1.9CM×1.6CM,最大SUVMAX值6.54。余纵隔及右肺门未见肿大及浓聚淋巴结。肝内可见多发浓聚灶,较大的约为CM,最大SUVMAX值5.28;余肝实质密度弥漫性减低,平扫CT值为17HU。右枕骨骨质破坏伴放射性浓聚,SUVMAX11.6;右7肋骨骨质破坏伴浓聚,最大SUVMAX值6.66;T2左侧横突摄取略高,最大SUVMAX值2.6。大脑形态如常,皮层各叶放射性分布均匀。皮层下各神经核团显影清晰,放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深,白质未见明显低密度影,中线无移位。脑室无扩大,基底节区显示对称。小脑显影如常,两侧小脑对称。垂体区灶状高摄取,最大SUVMAX值4.3。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。甲状腺两叶不大,形态可,腺实质内未见异常放射性增高灶。颈部及锁骨上区未见明显异常淋巴结浓聚。心肌显影浅淡。胸膜无增厚,胸水征阴性。两侧乳腺轻度显影,两侧大致对称,左侧乳腺外上象限可见小结节,约0.6CM×0.5CM,未见异常放射性摄取,余乳腺区未见异常浓聚灶。未见胸部软组织异常影像。胃充盈好,胃壁显影如常。肝内外胆管无扩张。胆囊大小正常,密度均匀,胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。腹壁软组织未见明显异常影像。膀胱放射性浓聚如常,膀胱壁无增厚。子宫体积、形态尚可,宫内可见节育环,局部无异常放射性浓聚。右附件可见囊性低密度影,放射性摄取稀疏缺损;左侧附件区未见异常放射性摄取。两侧腹股沟无异常淋巴结显示。视野内皮肤及软组织内未见异常放射性摄取。</t>
   </si>
   <si>
     <t>左肺下叶前内基底段</t>
@@ -2657,43 +2657,43 @@
     <t>纵隔7、11L区、左肺门、贲门区及胃左动脉旁转移淋巴结,肝,右枕骨,右7肋骨,T2左侧横突</t>
   </si>
   <si>
-    <t>右肺癌术后化疗后复查，与2017-05-27片对比：右肺下叶术后缺失，右肺下叶支气管截断，残端见金属致密影，未见明显软组织肿块影。残余右肺见多个类结节灶及条索灶，边界清。右肺上叶纵隔旁见条片稍高密度影，边界欠清。左肺内未见明显实质性病变。气管及余支气管分支通畅，未见明显受压变窄及异常扩张。双侧锁上、纵隔(主肺动脉窗、右上气管旁、双下气管旁、隆突下)、右肺门见多个小淋巴结，最大者直径约7MM，部分边界欠清，较前变化不大。双侧胸腔未见明显积液。右侧胸膜稍增厚，较前变化不明显；左侧胸膜未见明显增厚、粘连。心包腔内见少量液性低密度影，较前变化不大。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S4、S6、S7见小结节低密度灶，边界清，最大短径约6MM，增强扫描轻度强化，较前变化不大。肝内胆管正常，其内未见结石影，胆囊大小正常，其内见点状小结石，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾见小类圆形低密度灶，边界清，较大者直径约8MM，增强扫描未见明显强化。双肾上腺大小、形态未见异常，密度均匀。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。右侧第5后肋、左侧第6前肋局部骨质密度增高，较前变化不大。T11、T12、L1、L3骨质密度不均匀增高，较前变化不大。右肺癌术后化疗后复查，与2017-05-27片对比：右肺下叶术后缺失，局部未见明确复发征象。双侧锁骨上、纵隔多发小淋巴结，较前无明显变化。右肺上叶纵隔旁条带影，考虑放射性肺炎可能，较前变化不大。肝S4、S6、S7小结节低密度灶，考虑转移瘤，较前变化不大。右侧第5后肋、左侧第6前肋，T11、T12、L1、L3骨质改变，考虑骨转移瘤，较前无明显变化。双肾囊肿。胆囊结石。</t>
+    <t>右肺癌术后化疗后复查,与2017-05-27片对比:右肺下叶术后缺失,右肺下叶支气管截断,残端见金属致密影,未见明显软组织肿块影。残余右肺见多个类结节灶及条索灶,边界清。右肺上叶纵隔旁见条片稍高密度影,边界欠清。左肺内未见明显实质性病变。气管及余支气管分支通畅,未见明显受压变窄及异常扩张。双侧锁上、纵隔(主肺动脉窗、右上气管旁、双下气管旁、隆突下)、右肺门见多个小淋巴结,最大者直径约7MM,部分边界欠清,较前变化不大。双侧胸腔未见明显积液。右侧胸膜稍增厚,较前变化不明显;左侧胸膜未见明显增厚、粘连。心包腔内见少量液性低密度影,较前变化不大。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,肝S4、S6、S7见小结节低密度灶,边界清,最大短径约6MM,增强扫描轻度强化,较前变化不大。肝内胆管正常,其内未见结石影,胆囊大小正常,其内见点状小结石,胆总管未见扩张,其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。双肾见小类圆形低密度灶,边界清,较大者直径约8MM,增强扫描未见明显强化。双肾上腺大小、形态未见异常,密度均匀。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。右侧第5后肋、左侧第6前肋局部骨质密度增高,较前变化不大。T11、T12、L1、L3骨质密度不均匀增高,较前变化不大。右肺癌术后化疗后复查,与2017-05-27片对比:右肺下叶术后缺失,局部未见明确复发征象。双侧锁骨上、纵隔多发小淋巴结,较前无明显变化。右肺上叶纵隔旁条带影,考虑放射性肺炎可能,较前变化不大。肝S4、S6、S7小结节低密度灶,考虑转移瘤,较前变化不大。右侧第5后肋、左侧第6前肋,T11、T12、L1、L3骨质改变,考虑骨转移瘤,较前无明显变化。双肾囊肿。胆囊结石。</t>
   </si>
   <si>
     <t>右侧第5后肋,左侧第6前肋,T11,T12,L1,L3,肝S4,S6,S7</t>
   </si>
   <si>
-    <t>左侧乳腺癌术后局部复发2程化疗后，对比2012.4.24CT：左侧胸壁多发结节及团块，左侧胸壁皮肤不均匀增厚，较前明显好转。左锁上下区、右侧腋窝、纵膈、双肺门、右前膈角区、膈脚后、胃左血管旁及腹膜后多发肿大淋巴结，考虑转移瘤，均较前缩小。双侧胸腔积液，较前吸收、减少；双下肺组织膨胀不全。肝脏未见明确病变。肝左叶肝内胆管结石；胆囊结石。左侧乳腺癌术后局部复发2程化疗后，对比2012.4.24CT：左侧乳腺癌术后，左侧乳腺缺失，左侧胸壁见多发结节及团块影，边界不清楚，密度不均匀，最大范围约20MM×32MM，增强后不均匀强化，左侧局部皮肤不均匀增厚，皮下索条影增多，边界模糊。左侧锁骨上下区、右侧腋窝见多发肿大淋巴结，可见融合坏死，边界欠清，最大约21MM×25MM，增强后不均匀强化，左侧锁骨下动脉、静脉被包绕，边界欠清。右侧乳腺腺体结构稍乱，呈团片影，边界欠清，未见明确肿物。双肺纹理粗多，双侧胸腔见少量积液，双下肺组织受压膨胀不全。最上纵膈、血管前、双上下气管旁、主肺动脉窗、主动脉弓旁、隆突下及双肺门、右前膈角区见多发肿大淋巴结，可见融合，最大约19MM×32MM，边界欠清。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀。肝左叶肝内胆管见散在高密度影，余肝内胆管正常，其内未见结石影，胆囊大小正常，其内见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾所见正常。双肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁见多发肿大淋巴结，最大约15MM×22MM，增强后较明显强化。扫描所见骨质未见明确破坏征象。</t>
+    <t>左侧乳腺癌术后局部复发2程化疗后,对比2012.4.24CT:左侧胸壁多发结节及团块,左侧胸壁皮肤不均匀增厚,较前明显好转。左锁上下区、右侧腋窝、纵膈、双肺门、右前膈角区、膈脚后、胃左血管旁及腹膜后多发肿大淋巴结,考虑转移瘤,均较前缩小。双侧胸腔积液,较前吸收、减少;双下肺组织膨胀不全。肝脏未见明确病变。肝左叶肝内胆管结石;胆囊结石。左侧乳腺癌术后局部复发2程化疗后,对比2012.4.24CT:左侧乳腺癌术后,左侧乳腺缺失,左侧胸壁见多发结节及团块影,边界不清楚,密度不均匀,最大范围约20MM×32MM,增强后不均匀强化,左侧局部皮肤不均匀增厚,皮下索条影增多,边界模糊。左侧锁骨上下区、右侧腋窝见多发肿大淋巴结,可见融合坏死,边界欠清,最大约21MM×25MM,增强后不均匀强化,左侧锁骨下动脉、静脉被包绕,边界欠清。右侧乳腺腺体结构稍乱,呈团片影,边界欠清,未见明确肿物。双肺纹理粗多,双侧胸腔见少量积液,双下肺组织受压膨胀不全。最上纵膈、血管前、双上下气管旁、主肺动脉窗、主动脉弓旁、隆突下及双肺门、右前膈角区见多发肿大淋巴结,可见融合,最大约19MM×32MM,边界欠清。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度均匀。肝左叶肝内胆管见散在高密度影,余肝内胆管正常,其内未见结石影,胆囊大小正常,其内见结石影,胆总管未见扩张,其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。双肾所见正常。双肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁见多发肿大淋巴结,最大约15MM×22MM,增强后较明显强化。扫描所见骨质未见明确破坏征象。</t>
   </si>
   <si>
     <t>左锁上下区,右侧腋窝,纵膈,双肺门,右前膈角区,膈脚后,胃左血管旁及腹膜后多发肿大淋巴结</t>
   </si>
   <si>
-    <t>右肺下叶后基底段占位，考虑周围型肺癌可能性大。左肺上叶结节，转移待排，建议追查。右侧胸膜增厚，考虑受侵可能。纵隔内淋巴结，性质待定。右肺下叶后基底段见类圆形结节，约为17MM×15MM(IM47)，结节边缘见索条影与邻近胸膜相连。另见左肺上叶见小结节，约为8MM(IM17)。左肺舌叶、右肺中叶及右肺下叶见索条影。右侧胸膜增厚，左侧胸膜光滑，双侧未见胸水征象。纵隔内4、7、10R组见多发淋巴结，较大约15MM×11MM(IM22)。双侧锁骨上区未见肿大淋巴结。扫及诸骨未见破坏征象。</t>
+    <t>右肺下叶后基底段占位,考虑周围型肺癌可能性大。左肺上叶结节,转移待排,建议追查。右侧胸膜增厚,考虑受侵可能。纵隔内淋巴结,性质待定。右肺下叶后基底段见类圆形结节,约为17MM×15MM(IM47),结节边缘见索条影与邻近胸膜相连。另见左肺上叶见小结节,约为8MM(IM17)。左肺舌叶、右肺中叶及右肺下叶见索条影。右侧胸膜增厚,左侧胸膜光滑,双侧未见胸水征象。纵隔内4、7、10R组见多发淋巴结,较大约15MM×11MM(IM22)。双侧锁骨上区未见肿大淋巴结。扫及诸骨未见破坏征象。</t>
   </si>
   <si>
     <t>17MM×15MM</t>
   </si>
   <si>
-    <t>右肺下叶见一不规则软组织密度结节灶，边缘分叶，截面积约2.1CM×1.6CM；增强扫描呈不均匀强化。另于右肺下叶胸膜下见类结节灶(图5-40)，直径约0.7CM。双肺透光度减低，右肺上叶可见少许片絮状密度增高影。右肺门、纵隔内2R、2L、4R见多发肿大淋巴结，大者短径约1.0CM。肝内胆管局部示扩张，肝内见多发低密度灶，边界清，未见强化。双肾形态可，强化欠均匀，可见片状低密度影。腹腔及腹膜后未见明确肿大淋巴结。部分椎体内可见低密度影，其内可见颗粒状高密度影。1.结合临床，右肺下叶癌，右肺门及纵隔淋巴结肿大，考虑转移2.右肺下叶胸膜下类结节灶，建议观察3.右肺上叶片絮状影，考虑炎症4.肝内胆管轻度扩张5.双肾密度减低并片状低密度影，建议结合临床6.部分椎体低密度影，考虑血管瘤</t>
+    <t>右肺下叶见一不规则软组织密度结节灶,边缘分叶,截面积约2.1CM×1.6CM;增强扫描呈不均匀强化。另于右肺下叶胸膜下见类结节灶(图5-40),直径约0.7CM。双肺透光度减低,右肺上叶可见少许片絮状密度增高影。右肺门、纵隔内2R、2L、4R见多发肿大淋巴结,大者短径约1.0CM。肝内胆管局部示扩张,肝内见多发低密度灶,边界清,未见强化。双肾形态可,强化欠均匀,可见片状低密度影。腹腔及腹膜后未见明确肿大淋巴结。部分椎体内可见低密度影,其内可见颗粒状高密度影。1.结合临床,右肺下叶癌,右肺门及纵隔淋巴结肿大,考虑转移2.右肺下叶胸膜下类结节灶,建议观察3.右肺上叶片絮状影,考虑炎症4.肝内胆管轻度扩张5.双肾密度减低并片状低密度影,建议结合临床6.部分椎体低密度影,考虑血管瘤</t>
   </si>
   <si>
     <t>2.1CM×1.6CM</t>
   </si>
   <si>
-    <t>右肺下叶可见不规则软组织密度影，与右肺门分界不清，边缘毛糙，分叶状，长径约为1.9CM×1.6CM，右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影，部分边缘毛糙；纵隔内未见增大淋巴结影。心包内见少许液性密度影。甲状腺增大。1.考虑右肺下叶肺癌，并双肺、右胸膜多发转移；较前CT(2016-06-13)相仿；2.心包少量积液，较前相仿；3.甲状腺改变，请结合临床。</t>
+    <t>右肺下叶可见不规则软组织密度影,与右肺门分界不清,边缘毛糙,分叶状,长径约为1.9CM×1.6CM,右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影,部分边缘毛糙;纵隔内未见增大淋巴结影。心包内见少许液性密度影。甲状腺增大。1.考虑右肺下叶肺癌,并双肺、右胸膜多发转移;较前CT(2016-06-13)相仿;2.心包少量积液,较前相仿;3.甲状腺改变,请结合临床。</t>
   </si>
   <si>
     <t>1.9CM×1.6CM</t>
   </si>
   <si>
-    <t>“左肺鳞癌放化疗后”，对比2014-10-8MMR片：左肺门周围软组织增多，边界不清，范围约18MM×17MM，包绕左上肺叶支气管，左上肺支气管狭窄，病灶T1WI呈等信号，T2WI呈稍高信号，增强后轻度强化，与前片对比，病灶范围较前未见明显变化。左肺上叶见斑片状、条索状病变，边界不清，信号不均匀，部分病灶内见空洞形成，较前变化不大。右侧肺尖见数处斑片影、条索影，较前未见明显变化。左肺下叶见少许条索灶，边界清晰，与邻近胸膜粘连，大致同前。原右上肺及左下肺背段斑片影较前吸收。双下气管旁见数个淋巴结，较大者大小约15MM×11MM，边界欠清，轻中度强化，较前缩小。双侧胸腔未见积液，左下胸膜轻度增厚，右侧胸膜未见增厚。扫描所见骨质未见明确破坏征象。大脑各叶、小脑及脑干形态正常，信号均匀，增强后亦未见异常信号区。各脑室及脑池大小、形态未见异常；大脑中线结构未见移位，未见占位性病变。颅骨骨质未见破坏。双侧筛窦粘膜增厚，右侧上颌窦粘膜增厚，内见大量分泌物。双眼球后未见占位性病变。“左肺鳞癌放化疗后”，左上肺门周围软组织灶，范围较前未见明显变化。左肺上叶条索及空腔影，考虑纤维灶并肺大泡可能性大，较前未见明显变化。右肺尖及左下肺少许斑片影、条索影，较前未见明显变化。右上肺及左下肺背段斑片影，考虑炎症，较前吸收。纵隔淋巴结，考虑转移瘤，较前缩小。颅脑未见明确异常。副鼻窦炎。</t>
+    <t>“左肺鳞癌放化疗后”,对比2014-10-8MMR片:左肺门周围软组织增多,边界不清,范围约18MM×17MM,包绕左上肺叶支气管,左上肺支气管狭窄,病灶T1WI呈等信号,T2WI呈稍高信号,增强后轻度强化,与前片对比,病灶范围较前未见明显变化。左肺上叶见斑片状、条索状病变,边界不清,信号不均匀,部分病灶内见空洞形成,较前变化不大。右侧肺尖见数处斑片影、条索影,较前未见明显变化。左肺下叶见少许条索灶,边界清晰,与邻近胸膜粘连,大致同前。原右上肺及左下肺背段斑片影较前吸收。双下气管旁见数个淋巴结,较大者大小约15MM×11MM,边界欠清,轻中度强化,较前缩小。双侧胸腔未见积液,左下胸膜轻度增厚,右侧胸膜未见增厚。扫描所见骨质未见明确破坏征象。大脑各叶、小脑及脑干形态正常,信号均匀,增强后亦未见异常信号区。各脑室及脑池大小、形态未见异常;大脑中线结构未见移位,未见占位性病变。颅骨骨质未见破坏。双侧筛窦粘膜增厚,右侧上颌窦粘膜增厚,内见大量分泌物。双眼球后未见占位性病变。“左肺鳞癌放化疗后”,左上肺门周围软组织灶,范围较前未见明显变化。左肺上叶条索及空腔影,考虑纤维灶并肺大泡可能性大,较前未见明显变化。右肺尖及左下肺少许斑片影、条索影,较前未见明显变化。右上肺及左下肺背段斑片影,考虑炎症,较前吸收。纵隔淋巴结,考虑转移瘤,较前缩小。颅脑未见明确异常。副鼻窦炎。</t>
   </si>
   <si>
     <t>18MM×17MM</t>
   </si>
   <si>
-    <t>右肺上叶尖段纵隔旁周围型MT可能；右侧肺门、纵隔双侧锁骨区淋巴结转移；第3颈椎转移；两肺上叶、左肺下叶炎性病变可能；两肺磨玻璃小结节，建议随访；两肺小气囊；甲状腺左叶中部小腺瘤可能，请结合超声检查。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。双侧上颌窦粘膜轻度增厚，考虑为慢性炎症，其余副鼻窦未见明显异常。颈部PET/CT图像示双侧锁骨区见多发糖代谢增高的肿大淋巴结，较大者位于左侧，最大SUV值约为14.4，大小约为52.1MM×25.5MM；甲状腺形态如常，左叶中部见一枚大小约为6.8MM×6.0MM的小低密度影；口咽、喉咽部无殊。胸部PET/CT图像示两肺纹理增粗，右肺上叶尖段见一枚大小约为14.9MM×4.4MM、糖代谢异常增高的软组织结节影，最大SUV值约为6.8，密度欠均匀，边缘呈分叶状，并与右肺尖胸膜分界欠清；左肺上叶尖后段见大小约为11.0MM×8.8MM、不伴糖代谢增高的斑片影，局部似见气管纠集征象；右肺上叶后段见一枚大小约为10.3MM×7.0MM、不伴糖代谢增高的斑片影，内密度欠均匀，邻近似见胸膜牵拉；左肺下叶基底段近肺门处见范围约为23.9MM×19.2MM的条片状高密度影，最大SUV值约为1.7；其余两肺见多发不伴糖代谢增高的小磨玻璃结节影，较大者位于左肺上叶舌段，直径约为6.0MM；左肺上叶尖后段见一枚直径约为2.3MM的不规则小结节，两肺散在囊状透亮无肺纹理区；右侧肺门及纵隔(上纵隔血管间隙、血管前间隙、主肺动脉窗、主动脉弓左及隆突下)见多发糖代谢异常增高的肿大淋巴结，糖代谢较高及较大者位于隆突下，最大SUV值约为13.4，大小约为48.1MM×21.7MM；左侧肺门、双侧胸壁、腋窝等无殊。双侧胸膜无增厚；双侧胸腔无积液；心脏无明显增大；双侧腋窝无明显肿大淋巴结。腹部PET图像示胃壁呈生理性糖代谢增强；肠道呈生理性糖代谢增强；肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内未见明显占位；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；胆囊、胰、双肾、肾上腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈，壁光滑无增厚；双侧精囊腺形态可；双侧膀胱精囊三角对称；前列腺无明显增大，密度均；盆腔内未见占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示第3颈椎左侧附件见溶骨性骨质破坏伴糖代谢异常增高，最大SUV值约为8.7；其余骨骼未见糖代谢异常增高或骨质破坏吸收征象。</t>
+    <t>右肺上叶尖段纵隔旁周围型MT可能;右侧肺门、纵隔双侧锁骨区淋巴结转移;第3颈椎转移;两肺上叶、左肺下叶炎性病变可能;两肺磨玻璃小结节,建议随访;两肺小气囊;甲状腺左叶中部小腺瘤可能,请结合超声检查。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼外肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。双侧上颌窦粘膜轻度增厚,考虑为慢性炎症,其余副鼻窦未见明显异常。颈部PET/CT图像示双侧锁骨区见多发糖代谢增高的肿大淋巴结,较大者位于左侧,最大SUV值约为14.4,大小约为52.1MM×25.5MM;甲状腺形态如常,左叶中部见一枚大小约为6.8MM×6.0MM的小低密度影;口咽、喉咽部无殊。胸部PET/CT图像示两肺纹理增粗,右肺上叶尖段见一枚大小约为14.9MM×4.4MM、糖代谢异常增高的软组织结节影,最大SUV值约为6.8,密度欠均匀,边缘呈分叶状,并与右肺尖胸膜分界欠清;左肺上叶尖后段见大小约为11.0MM×8.8MM、不伴糖代谢增高的斑片影,局部似见气管纠集征象;右肺上叶后段见一枚大小约为10.3MM×7.0MM、不伴糖代谢增高的斑片影,内密度欠均匀,邻近似见胸膜牵拉;左肺下叶基底段近肺门处见范围约为23.9MM×19.2MM的条片状高密度影,最大SUV值约为1.7;其余两肺见多发不伴糖代谢增高的小磨玻璃结节影,较大者位于左肺上叶舌段,直径约为6.0MM;左肺上叶尖后段见一枚直径约为2.3MM的不规则小结节,两肺散在囊状透亮无肺纹理区;右侧肺门及纵隔(上纵隔血管间隙、血管前间隙、主肺动脉窗、主动脉弓左及隆突下)见多发糖代谢异常增高的肿大淋巴结,糖代谢较高及较大者位于隆突下,最大SUV值约为13.4,大小约为48.1MM×21.7MM;左侧肺门、双侧胸壁、腋窝等无殊。双侧胸膜无增厚;双侧胸腔无积液;心脏无明显增大;双侧腋窝无明显肿大淋巴结。腹部PET图像示胃壁呈生理性糖代谢增强;肠道呈生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整,各叶比例匀称,实质内未见明显占位;肝内外胆管无扩张;脾脏不大,密度均,未见明显占位;胆囊、胰、双肾、肾上腺无殊;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚;肠道呈生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈,壁光滑无增厚;双侧精囊腺形态可;双侧膀胱精囊三角对称;前列腺无明显增大,密度均;盆腔内未见占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET/CT图像示第3颈椎左侧附件见溶骨性骨质破坏伴糖代谢异常增高,最大SUV值约为8.7;其余骨骼未见糖代谢异常增高或骨质破坏吸收征象。</t>
   </si>
   <si>
     <t>14.9MM×4.4MM</t>
@@ -2702,16 +2702,16 @@
     <t>右侧肺门,纵隔双侧锁骨区淋巴结,第3颈椎</t>
   </si>
   <si>
-    <t>乳腺99MMTC-MIBIBSGI平面显像示：右侧乳腺外上象限MT可能性大，右侧腋窝淋巴结转移可能，请结合临床；左侧乳腺平面显像未见明显异常。显像方法：静脉注射99MMTC-MIBI10分钟后应用DILON乳腺机行双侧乳腺及腋窝平面显像，RCC、LCC、RMLO、LMLO位采集信息，采集时间均为6分钟/体位。影像所见：双侧乳腺显影清晰，右侧乳腺放射性分布不均匀，外上象限见结节状放射性异常浓聚灶，RCC位及RMLO位T/N比值分别为5.9和6.8，右侧腋窝见放射性异常浓聚灶；左侧乳腺放射性分布基本均匀，未见明显放射性异常浓聚灶；左侧腋窝未见明显放射性异常浓聚灶。</t>
-  </si>
-  <si>
-    <t>左肺癌术后：1、纵隔7区、左肺门、左心包旁增大淋巴结伴代谢活跃，考虑转移；右肺多发小结节，未见高代谢，随访。2、需与术后改变鉴别并密切随访：左胸腔包裹性积液；左侧胸壁及左侧6、7后肋术区代谢增高。3、右肺气肿。心包少量积液。肝小囊肿。肛门部痔疮。椎体少许骨质增生。4、垂体区软组织结节伴代谢活跃，垂体瘤?请结合垂体MRI。余脑代谢未见明显异常。空腹6小时以上，静脉注射显像剂，平静休息60MMIN后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：左肺术后，左侧胸腔包裹性积液，边缘部伴轻度摄取，SUVMAX2.3。右肺气肿，右肺散在小结节，较大者约3MM，未见异常浓聚。右侧胸膜无增厚，胸水征阴性。纵隔7区、左肺门、左心包旁见增大淋巴结伴放射性浓聚，SUVMAX3.6-13.02，7区较大者约2.5CM×1.7CM。心肌浅淡显影，心包少量积液。左胸壁术区放射性增高，SUVMAX2.6。左6、7后肋术区放射性浓聚，SUVMAX4.7。大脑形态如常，皮层各叶放射性分布均匀。皮层下各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，两侧小脑对称。垂体区见软组织结节伴放射性浓聚，SUVMAX20.56，结节大小约1.6CM×1.2CM。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。颈部及锁骨上区未见明显异常淋巴结浓聚。胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝内多发小囊性低密度灶，放射性稀疏，肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常，膀胱壁无增厚。前列腺大小正常，放射性分布大致正常。两侧腹股沟无异常淋巴结显示。肛门部放射性增高，SUVMAX5.5。椎体边缘少许骨质增生。项韧带可见钙化。上、下肢关节带大致正常。</t>
+    <t>乳腺99MMTC-MIBIBSGI平面显像示:右侧乳腺外上象限MT可能性大,右侧腋窝淋巴结转移可能,请结合临床;左侧乳腺平面显像未见明显异常。显像方法:静脉注射99MMTC-MIBI10分钟后应用DILON乳腺机行双侧乳腺及腋窝平面显像,RCC、LCC、RMLO、LMLO位采集信息,采集时间均为6分钟/体位。影像所见:双侧乳腺显影清晰,右侧乳腺放射性分布不均匀,外上象限见结节状放射性异常浓聚灶,RCC位及RMLO位T/N比值分别为5.9和6.8,右侧腋窝见放射性异常浓聚灶;左侧乳腺放射性分布基本均匀,未见明显放射性异常浓聚灶;左侧腋窝未见明显放射性异常浓聚灶。</t>
+  </si>
+  <si>
+    <t>左肺癌术后:1、纵隔7区、左肺门、左心包旁增大淋巴结伴代谢活跃,考虑转移;右肺多发小结节,未见高代谢,随访。2、需与术后改变鉴别并密切随访:左胸腔包裹性积液;左侧胸壁及左侧6、7后肋术区代谢增高。3、右肺气肿。心包少量积液。肝小囊肿。肛门部痔疮。椎体少许骨质增生。4、垂体区软组织结节伴代谢活跃,垂体瘤?请结合垂体MRI。余脑代谢未见明显异常。空腹6小时以上,静脉注射显像剂,平静休息60MMIN后行全身PET及CT断层显像,PET图像经衰减校正及重建后,将PET及CT图像行多平面、多幅显示:左肺术后,左侧胸腔包裹性积液,边缘部伴轻度摄取,SUVMAX2.3。右肺气肿,右肺散在小结节,较大者约3MM,未见异常浓聚。右侧胸膜无增厚,胸水征阴性。纵隔7区、左肺门、左心包旁见增大淋巴结伴放射性浓聚,SUVMAX3.6-13.02,7区较大者约2.5CM×1.7CM。心肌浅淡显影,心包少量积液。左胸壁术区放射性增高,SUVMAX2.6。左6、7后肋术区放射性浓聚,SUVMAX4.7。大脑形态如常,皮层各叶放射性分布均匀。皮层下各神经核团显影清晰,放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深,白质未见明显低密度影,中线无移位。脑室无扩大,基底节区显示对称。小脑显影如常,两侧小脑对称。垂体区见软组织结节伴放射性浓聚,SUVMAX20.56,结节大小约1.6CM×1.2CM。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。甲状腺两叶不大,形态可,腺实质内未见异常放射性增高灶。颈部及锁骨上区未见明显异常淋巴结浓聚。胃充盈好,胃壁显影如常。肝脏形态可,轮廓光整,肝叶比例正常,肝内多发小囊性低密度灶,放射性稀疏,肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常,密度均匀,胆囊壁无增厚。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常,膀胱壁无增厚。前列腺大小正常,放射性分布大致正常。两侧腹股沟无异常淋巴结显示。肛门部放射性增高,SUVMAX5.5。椎体边缘少许骨质增生。项韧带可见钙化。上、下肢关节带大致正常。</t>
   </si>
   <si>
     <t>纵隔7区,左肺门,左心包旁增大淋巴结</t>
   </si>
   <si>
-    <t>左乳多发占位，符合乳癌。\U007F双肺多发结节，考虑转移。\U007F左腋下多发肿大淋巴结，考虑转移。\U007F纵隔、左侧锁骨上区多发淋巴结，建议追查。\U007F左乳外象限多发不规则肿块，较大者约39MM×22MM(IMA31)。\U007F双肺见多发大小不等结节，较大者约17MM×14MM(IMA44)。\U007F纵隔4、5、7组及左侧锁骨上区见多发淋巴结，小于10MM。左腋下见多发肿大淋巴结，较大者约26MM×20MM(IMA18)。\U007F双侧胸膜光滑，未见胸水征象。\U007F扫及胸廓诸骨未见明确破坏征象。</t>
+    <t>左乳多发占位,符合乳癌。\U007F双肺多发结节,考虑转移。\U007F左腋下多发肿大淋巴结,考虑转移。\U007F纵隔、左侧锁骨上区多发淋巴结,建议追查。\U007F左乳外象限多发不规则肿块,较大者约39MM×22MM(IMA31)。\U007F双肺见多发大小不等结节,较大者约17MM×14MM(IMA44)。\U007F纵隔4、5、7组及左侧锁骨上区见多发淋巴结,小于10MM。左腋下见多发肿大淋巴结,较大者约26MM×20MM(IMA18)。\U007F双侧胸膜光滑,未见胸水征象。\U007F扫及胸廓诸骨未见明确破坏征象。</t>
   </si>
   <si>
     <t>39MM×22MM</t>
@@ -2720,16 +2720,16 @@
     <t>双肺,左腋下多发肿大淋巴结</t>
   </si>
   <si>
-    <t>1、左肺上叶支气管走行区高代谢结节，倾向恶性(中央型肺癌?)。左肺上叶支气管截断，远端肺不张。左肺门淋巴结转移可能大。2、余双肺散在少许小结节及微小结节，不伴代谢，性质待定，胸CT随访。3、余躯干部及脑部未见明显异常代谢征象。4、双上颌窦炎性病变。副脾(两个)。前列腺钙化。空腹6小时以上，静脉注射显像剂，平静休息60MMIN后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：左肺上叶支气管走行区可见浓聚结节，SUVMAX4.7，直径约1.2CM(PET图像)，左肺上叶支气管截断，远端肺不张。余双肺散在少许小结节及微小结节，未见明显放射性摄取。左肺门见轻度浓聚小淋巴结，SUVMAX2.9，直径约1.1CM，纵隔及右肺门未见肿大或异常浓聚淋巴结。心肌显影。双胸膜轻度弥漫增厚，胸水征阴性。大脑形态如常，皮层各叶放射性分布均匀。皮层下各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，两侧小脑对称。双上颌窦内可见软组织密度影。口咽部两侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺两叶不大，形态可，腺实质内未见异常放射性增高灶。双颈部及锁骨区未见明显异常淋巴结浓聚。胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀，脾门部见副脾结节(两个)。两侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常，膀胱壁无增厚。前列腺大小正常，内见点状钙化，放射性分布未见异常。两侧腹股沟无异常淋巴结显示。视野内轴心骨未见异常放射性浓聚。</t>
-  </si>
-  <si>
-    <t>1.结合临床，左乳癌术后改变；术区胸壁略示增厚并不均匀强化，较前2016-12-29基本变化不著；右肺占位，考虑转移并纵隔淋巴结转移，较前均好转2.心脏增大，请结合临床。3.考虑左肺炎症，局部加重4.右乳钙化灶。左乳术后，术区胸壁略示不规则增厚，肌肉间隙模糊，增强扫描呈不均匀强化。左侧腋窝结构紊乱，未见异常强化灶。右乳内示小颗粒状高密度灶。右肺上叶纵隔旁示长径约2.0CM软组织密度影，增强呈不均质强化，边缘毛糙。左肺上叶示片絮影。右腋窝、双侧内乳区、双侧肺门未见增大淋巴结。纵隔内示大者短径约0.9CM淋巴结。心脏体积显示增大。</t>
+    <t>1、左肺上叶支气管走行区高代谢结节,倾向恶性(中央型肺癌?)。左肺上叶支气管截断,远端肺不张。左肺门淋巴结转移可能大。2、余双肺散在少许小结节及微小结节,不伴代谢,性质待定,胸CT随访。3、余躯干部及脑部未见明显异常代谢征象。4、双上颌窦炎性病变。副脾(两个)。前列腺钙化。空腹6小时以上,静脉注射显像剂,平静休息60MMIN后行全身PET及CT断层显像,PET图像经衰减校正及重建后,将PET及CT图像行多平面、多幅显示:左肺上叶支气管走行区可见浓聚结节,SUVMAX4.7,直径约1.2CM(PET图像),左肺上叶支气管截断,远端肺不张。余双肺散在少许小结节及微小结节,未见明显放射性摄取。左肺门见轻度浓聚小淋巴结,SUVMAX2.9,直径约1.1CM,纵隔及右肺门未见肿大或异常浓聚淋巴结。心肌显影。双胸膜轻度弥漫增厚,胸水征阴性。大脑形态如常,皮层各叶放射性分布均匀。皮层下各神经核团显影清晰,放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深,白质未见明显低密度影,中线无移位。脑室无扩大,基底节区显示对称。小脑显影如常,两侧小脑对称。双上颌窦内可见软组织密度影。口咽部两侧腺体显影对称,鼻咽部无异常放射性浓聚。甲状腺两叶不大,形态可,腺实质内未见异常放射性增高灶。双颈部及锁骨区未见明显异常淋巴结浓聚。胃充盈好,胃壁显影如常。肝脏形态可,轮廓光整,肝叶比例正常,肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常,密度均匀,胆囊壁无增厚。胰腺形态放射性分布尚好,胰管不扩张。脾脏轻度显影,放射性分布均匀,脾门部见副脾结节(两个)。两侧肾脏显影可,肾实质密度均匀,肾盂、肾盏及输尿管无扩张。两侧肾上腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常,膀胱壁无增厚。前列腺大小正常,内见点状钙化,放射性分布未见异常。两侧腹股沟无异常淋巴结显示。视野内轴心骨未见异常放射性浓聚。</t>
+  </si>
+  <si>
+    <t>1.结合临床,左乳癌术后改变;术区胸壁略示增厚并不均匀强化,较前2016-12-29基本变化不著;右肺占位,考虑转移并纵隔淋巴结转移,较前均好转2.心脏增大,请结合临床。3.考虑左肺炎症,局部加重4.右乳钙化灶。左乳术后,术区胸壁略示不规则增厚,肌肉间隙模糊,增强扫描呈不均匀强化。左侧腋窝结构紊乱,未见异常强化灶。右乳内示小颗粒状高密度灶。右肺上叶纵隔旁示长径约2.0CM软组织密度影,增强呈不均质强化,边缘毛糙。左肺上叶示片絮影。右腋窝、双侧内乳区、双侧肺门未见增大淋巴结。纵隔内示大者短径约0.9CM淋巴结。心脏体积显示增大。</t>
   </si>
   <si>
     <t>右肺,纵隔淋巴结</t>
   </si>
   <si>
-    <t>左肺下叶可见结节影，边缘光滑，大小约12MM×12MM(IM36)。左肺下叶后基底段胸膜下可见结节影，范围约14MM×9MM(IM43)，边缘可见毛刺及分叶，邻近胸膜受牵拉。右肺下叶可见多发小结节影(IM44、45)，较大约6MM(IM44)。双肺上叶胸膜下可见多发囊状透光区。余肺内透亮度均匀，未见结节或实变影。纵隔4L、6、左肺门可见多发肿大淋巴结，较大约38MM×26MM(IM28)。右肺门、锁骨上区未见肿大淋巴结。双侧胸膜光滑，未见胸水征象。扫及胸廓诸骨未见明确破坏征象。肝实质内可见多发小圆形低密度结节影。左肺下叶结节，考虑恶性，周围型肺癌可能大。左肺多发转移；右肺转移待排，随诊。纵隔及左肺门多发淋巴结转移。双肺上叶间隔旁肺气肿。肝脏多发低密度结节影，请结合腹部检查。</t>
+    <t>左肺下叶可见结节影,边缘光滑,大小约12MM×12MM(IM36)。左肺下叶后基底段胸膜下可见结节影,范围约14MM×9MM(IM43),边缘可见毛刺及分叶,邻近胸膜受牵拉。右肺下叶可见多发小结节影(IM44、45),较大约6MM(IM44)。双肺上叶胸膜下可见多发囊状透光区。余肺内透亮度均匀,未见结节或实变影。纵隔4L、6、左肺门可见多发肿大淋巴结,较大约38MM×26MM(IM28)。右肺门、锁骨上区未见肿大淋巴结。双侧胸膜光滑,未见胸水征象。扫及胸廓诸骨未见明确破坏征象。肝实质内可见多发小圆形低密度结节影。左肺下叶结节,考虑恶性,周围型肺癌可能大。左肺多发转移;右肺转移待排,随诊。纵隔及左肺门多发淋巴结转移。双肺上叶间隔旁肺气肿。肝脏多发低密度结节影,请结合腹部检查。</t>
   </si>
   <si>
     <t>14MM×9MM</t>
@@ -2738,7 +2738,7 @@
     <t>左肺,右肺,纵隔及左肺门多发淋巴结</t>
   </si>
   <si>
-    <t>右肺下叶背段肿物，中心型肺癌可能大；\U007F双肺多发结节，转移可能大，追查；\U007F右肺门肿大淋巴结，转移；\U007F气管隆突下淋巴结，性质待定，转移不除外。\U007F双侧腋窝多发小淋巴结，倾向良性，追查。\U007F胆囊结石。右肺下叶背段支气管狭窄、闭塞，局部可见不规则软组织密度肿块，密度不均，内部可见不规则空洞，与肺门肿大淋巴结融合，大小约41MM×41MM(IMA33)；余双肺野见多发模糊结节。\U007F纵隔气管隆突下见一淋巴结，约16MM×8MM(IMA35)，双侧腋窝见多发小淋巴结，小于10MM。\U007F右侧胸膜欠光滑，左侧胸膜光滑，双侧未见胸水。\U007F胸壁诸骨未见骨质破坏灶。\U007F胆囊颈见高密度结节灶。</t>
+    <t>右肺下叶背段肿物,中心型肺癌可能大;\U007F双肺多发结节,转移可能大,追查;\U007F右肺门肿大淋巴结,转移;\U007F气管隆突下淋巴结,性质待定,转移不除外。\U007F双侧腋窝多发小淋巴结,倾向良性,追查。\U007F胆囊结石。右肺下叶背段支气管狭窄、闭塞,局部可见不规则软组织密度肿块,密度不均,内部可见不规则空洞,与肺门肿大淋巴结融合,大小约41MM×41MM(IMA33);余双肺野见多发模糊结节。\U007F纵隔气管隆突下见一淋巴结,约16MM×8MM(IMA35),双侧腋窝见多发小淋巴结,小于10MM。\U007F右侧胸膜欠光滑,左侧胸膜光滑,双侧未见胸水。\U007F胸壁诸骨未见骨质破坏灶。\U007F胆囊颈见高密度结节灶。</t>
   </si>
   <si>
     <t>41MM×41MM</t>
@@ -2747,7 +2747,7 @@
     <t>双肺,右肺门肿大淋巴结,气管隆突下淋巴结</t>
   </si>
   <si>
-    <t>1.结合病史，考虑右乳癌并同侧腋窝淋巴转移(BI-RADSIV级)。2.双乳点片状强化灶(BI-RADSII级)。右乳外上象限可见异常信号灶，边缘分叶、毛糙，最大截面约2.7CM×2.1CM，表现为T1WI、T2WI等信号，压脂序列高信号，DWI高信号，增强后可见不均匀强化，动态增强曲线呈流出型；右乳晕区皮肤增厚。余双侧乳腺可见散在点片状强化灶。右腋窝可见多个肿大淋巴结，大者约0.8CM。左侧腋窝可见多发小淋巴结，其内可见偏心性脂肪信号。余未见异常。</t>
+    <t>1.结合病史,考虑右乳癌并同侧腋窝淋巴转移(BI-RADSIV级)。2.双乳点片状强化灶(BI-RADSII级)。右乳外上象限可见异常信号灶,边缘分叶、毛糙,最大截面约2.7CM×2.1CM,表现为T1WI、T2WI等信号,压脂序列高信号,DWI高信号,增强后可见不均匀强化,动态增强曲线呈流出型;右乳晕区皮肤增厚。余双侧乳腺可见散在点片状强化灶。右腋窝可见多个肿大淋巴结,大者约0.8CM。左侧腋窝可见多发小淋巴结,其内可见偏心性脂肪信号。余未见异常。</t>
   </si>
   <si>
     <t>2.7CM×2.1CM</t>
@@ -2756,19 +2756,19 @@
     <t>同侧腋窝淋巴</t>
   </si>
   <si>
-    <t>考虑为右侧乳腺癌并右腋窝淋巴结转移，请结合临床。双侧乳腺深部见囊带状液性信号影，其内信号欠均匀，似见少许条片影；病变边缘不光滑，见多发囊状、条片状类似信号，边界不清；右乳外上象限浅表可见不规则团块影，大小约为3.6CM×2.7CM，T2WI呈高信号，增强后明显强化，动态增强曲线呈速升型。右侧腋窝区见数个肿大淋巴结，大者直径约为1.2CM。</t>
+    <t>考虑为右侧乳腺癌并右腋窝淋巴结转移,请结合临床。双侧乳腺深部见囊带状液性信号影,其内信号欠均匀,似见少许条片影;病变边缘不光滑,见多发囊状、条片状类似信号,边界不清;右乳外上象限浅表可见不规则团块影,大小约为3.6CM×2.7CM,T2WI呈高信号,增强后明显强化,动态增强曲线呈速升型。右侧腋窝区见数个肿大淋巴结,大者直径约为1.2CM。</t>
   </si>
   <si>
     <t>3.6CM×2.7CM</t>
   </si>
   <si>
-    <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，左右侧下极各见一低密度灶，大小分别为7.9MM×6.4MM×9.5MM和4.2MM×3.0MM×3.11MM。胸部PET/CT图像示双侧乳腺切除术后，胸壁呈术后改变，左侧胸壁约第4肋腋段外侧见一糖代谢轻度增高的结节，大小约为12.3MM×9.2MM，最大SUV值为1.3；双肺纹理清晰，左肺下叶背段近斜裂见两枚糖代谢轻度增高的小结节，边界光滑，大小分别为8.4MM×2.9MM和8.8MM×5.2MM，最大SUV值均为1.2；右肺上叶尖段见少许不伴糖代谢增高的条片影及钙化灶；各级支气管腔通畅；纵隔气管胸廓入口处、气管前间隙、主肺动脉窗、气管隆突下、胸主动脉旁及双肺门多发肿大淋巴结，伴不同程度糖代谢增高，糖代谢最高者位于胸主动脉旁(约第8胸椎水平)，最大SUV值为7.6，大小约为11.9MM×9.1MM；最大者位于气管隆突下，大小约为14.2MM×10.7MM，最大SUV值约为6.2；双侧胸膜无增厚；双侧胸腔无积液；心脏无明显增大；双侧腋窝未见明显糖代谢增高及肿大淋巴结。腹部PET/CT图像示胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝脏表面尚光整，左右叶多发糖代谢异常增高的低密度灶，较大者三枚分别位于右叶膈顶(2枚)及尾叶，大小分别为26.0MM×23.0MM、21.4MM×13.0MM和30.6MM×24.5MM，最大SUV值分别为8.0、5.8和9.4；右后叶包膜下另见一无糖代谢增高的低密度灶，边界欠清，大小约为8.3MM×6.5MM；肝内外胆管无扩张；脾脏不大，内见多发钙化，未见明显糖代谢增高及占位；左肾内见多发结节状致密影；胆囊、胰、双肾上腺、右肾、输尿管及大血管处未见明显糖代谢异常增高及占位；腹膜后未见明显糖代谢增高及肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁光滑无增厚；子宫和双附件区未见明显占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示第1骶椎右侧见溶骨性骨质破坏，局部骨皮质连续性中断，伴糖代谢异常增高，最大SUV值为6.9；余全身骨骼未见明显糖代谢增高及骨质破坏吸收吸收征象。双侧乳腺MT综合治疗后病例，结合病史，考虑为纵隔淋巴结转移、肝脏及第1骶骨转移；右侧胸壁结节及右肺下叶小结节，转移可能，请随访；双侧甲状腺良性病变，建议超声随访；右肺上叶慢性炎症及陈旧灶；肝脏右叶良性病变；脾脏多发钙化灶；左肾多发结石。</t>
+    <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼内肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结;口咽、喉咽部无占位;甲状腺无肿大,左右侧下极各见一低密度灶,大小分别为7.9MM×6.4MM×9.5MM和4.2MM×3.0MM×3.11MM。胸部PET/CT图像示双侧乳腺切除术后,胸壁呈术后改变,左侧胸壁约第4肋腋段外侧见一糖代谢轻度增高的结节,大小约为12.3MM×9.2MM,最大SUV值为1.3;双肺纹理清晰,左肺下叶背段近斜裂见两枚糖代谢轻度增高的小结节,边界光滑,大小分别为8.4MM×2.9MM和8.8MM×5.2MM,最大SUV值均为1.2;右肺上叶尖段见少许不伴糖代谢增高的条片影及钙化灶;各级支气管腔通畅;纵隔气管胸廓入口处、气管前间隙、主肺动脉窗、气管隆突下、胸主动脉旁及双肺门多发肿大淋巴结,伴不同程度糖代谢增高,糖代谢最高者位于胸主动脉旁(约第8胸椎水平),最大SUV值为7.6,大小约为11.9MM×9.1MM;最大者位于气管隆突下,大小约为14.2MM×10.7MM,最大SUV值约为6.2;双侧胸膜无增厚;双侧胸腔无积液;心脏无明显增大;双侧腋窝未见明显糖代谢增高及肿大淋巴结。腹部PET/CT图像示胃壁均匀性轻度糖代谢生理性增强;肠道呈线型生理性糖代谢增强;肝脏表面尚光整,左右叶多发糖代谢异常增高的低密度灶,较大者三枚分别位于右叶膈顶(2枚)及尾叶,大小分别为26.0MM×23.0MM、21.4MM×13.0MM和30.6MM×24.5MM,最大SUV值分别为8.0、5.8和9.4;右后叶包膜下另见一无糖代谢增高的低密度灶,边界欠清,大小约为8.3MM×6.5MM;肝内外胆管无扩张;脾脏不大,内见多发钙化,未见明显糖代谢增高及占位;左肾内见多发结节状致密影;胆囊、胰、双肾上腺、右肾、输尿管及大血管处未见明显糖代谢异常增高及占位;腹膜后未见明显糖代谢增高及肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁光滑无增厚;子宫和双附件区未见明显占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET/CT图像示第1骶椎右侧见溶骨性骨质破坏,局部骨皮质连续性中断,伴糖代谢异常增高,最大SUV值为6.9;余全身骨骼未见明显糖代谢增高及骨质破坏吸收吸收征象。双侧乳腺MT综合治疗后病例,结合病史,考虑为纵隔淋巴结转移、肝脏及第1骶骨转移;右侧胸壁结节及右肺下叶小结节,转移可能,请随访;双侧甲状腺良性病变,建议超声随访;右肺上叶慢性炎症及陈旧灶;肝脏右叶良性病变;脾脏多发钙化灶;左肾多发结石。</t>
   </si>
   <si>
     <t>纵隔淋巴结,肝脏,第1骶骨,右侧胸壁,右肺下叶</t>
   </si>
   <si>
-    <t>右下肺见巨大团块状软组织肿块，边界不清，见毛刺征，呈分叶状，大小约45MM×51MM，增强扫描明显强化。双肺上叶、右肺下叶见多发结节影，较大者直径约9MM，增强扫描明显强化。右肺中叶内侧段、左肺上叶下舌段胸膜下见小结节影。气管及支气管分支通畅。双侧锁骨上、右上气管旁、主动脉弓旁、双下气管旁、主肺动脉窗、双肺门见多发淋巴结，较大者位于右肺门，大小约19MM×9MM。双侧腋窝未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，未见明显异常密度灶，增强扫描未见异常强化影。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。左肾实质见一类圆形低密度病变，边界清晰，直径约5MM，增强扫描未见强化。右肾所见正常。双肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围内骨质未见明显破坏。右下肺团块状软组织肿块，考虑肺癌。双肺上叶、右肺下叶多发结节影，考虑转移瘤可能。右肺中叶内侧段、左肺上叶下舌段胸膜下小结节影，考虑增殖灶。纵隔、双肺门多发淋巴结，不排除转移可能。左肾小囊肿。肝脏未见明显病变。</t>
+    <t>右下肺见巨大团块状软组织肿块,边界不清,见毛刺征,呈分叶状,大小约45MM×51MM,增强扫描明显强化。双肺上叶、右肺下叶见多发结节影,较大者直径约9MM,增强扫描明显强化。右肺中叶内侧段、左肺上叶下舌段胸膜下见小结节影。气管及支气管分支通畅。双侧锁骨上、右上气管旁、主动脉弓旁、双下气管旁、主肺动脉窗、双肺门见多发淋巴结,较大者位于右肺门,大小约19MM×9MM。双侧腋窝未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,未见明显异常密度灶,增强扫描未见异常强化影。肝内胆管正常,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。左肾实质见一类圆形低密度病变,边界清晰,直径约5MM,增强扫描未见强化。右肾所见正常。双肾上腺所见正常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围内骨质未见明显破坏。右下肺团块状软组织肿块,考虑肺癌。双肺上叶、右肺下叶多发结节影,考虑转移瘤可能。右肺中叶内侧段、左肺上叶下舌段胸膜下小结节影,考虑增殖灶。纵隔、双肺门多发淋巴结,不排除转移可能。左肾小囊肿。肝脏未见明显病变。</t>
   </si>
   <si>
     <t>45MM×51MM</t>
@@ -2777,7 +2777,7 @@
     <t>双肺上叶,右肺下叶,纵隔,双肺门多发淋巴结</t>
   </si>
   <si>
-    <t>右后中下纵隔占位，考虑恶性，转移?病变同食道分界不清，侵犯左心房、左下肺静脉及纵隔胸膜，建议活检。右肺上叶尖段结节，恶性不除外。两肺肺气肿、肺大泡；肺内小结节，建议追查。右侧少量胸腔积液，引流管植入术后。纵隔及肺门肿大淋巴结，倾向转移。贲门左及纵隔小淋巴结，转移不除外。双侧肾上腺结节，考虑转移。右后中下纵隔见异常不规则软组织肿块影，较大层面约75MM×63MM(IM42)，增强扫描可见强化，同周围食道分界不清，病变侵犯左心房、左下肺静脉及纵隔胸膜，向肺实质内结节状突起，交界面毛糙。右下肺气管血管束旁可见软组织密度(IM37)，与主动脉接触面小于90度。纵隔及肺门另见多发淋巴结，较大者约12MM×11MM(IM31)。两肺肺气肿，可见局限性肺大泡。右肺上叶尖段可见毛刺结节灶，大小约18MM×15MM(IMA16)；另双肺可见数个小结节灶(IM24、37)。双侧锁骨上区及双腋下未见肿大淋巴结。右侧胸膜欠光整，右侧少量胸腔积液，可见胸腔引流管影。左侧胸膜光滑，未见胸水征象。扫及胸廓诸骨未见明确破坏征象。双侧肾上腺可见结节灶，左侧较大者约21MM×20MM(IMA60)。</t>
+    <t>右后中下纵隔占位,考虑恶性,转移?病变同食道分界不清,侵犯左心房、左下肺静脉及纵隔胸膜,建议活检。右肺上叶尖段结节,恶性不除外。两肺肺气肿、肺大泡;肺内小结节,建议追查。右侧少量胸腔积液,引流管植入术后。纵隔及肺门肿大淋巴结,倾向转移。贲门左及纵隔小淋巴结,转移不除外。双侧肾上腺结节,考虑转移。右后中下纵隔见异常不规则软组织肿块影,较大层面约75MM×63MM(IM42),增强扫描可见强化,同周围食道分界不清,病变侵犯左心房、左下肺静脉及纵隔胸膜,向肺实质内结节状突起,交界面毛糙。右下肺气管血管束旁可见软组织密度(IM37),与主动脉接触面小于90度。纵隔及肺门另见多发淋巴结,较大者约12MM×11MM(IM31)。两肺肺气肿,可见局限性肺大泡。右肺上叶尖段可见毛刺结节灶,大小约18MM×15MM(IMA16);另双肺可见数个小结节灶(IM24、37)。双侧锁骨上区及双腋下未见肿大淋巴结。右侧胸膜欠光整,右侧少量胸腔积液,可见胸腔引流管影。左侧胸膜光滑,未见胸水征象。扫及胸廓诸骨未见明确破坏征象。双侧肾上腺可见结节灶,左侧较大者约21MM×20MM(IMA60)。</t>
   </si>
   <si>
     <t>右后中下纵隔,右肺上叶尖段</t>
@@ -2789,10 +2789,10 @@
     <t>纵隔及肺门肿大淋巴结,贲门左及纵隔小淋巴结,双侧肾上腺</t>
   </si>
   <si>
-    <t>肝实质密度普遍降低，肝左右叶见多发结节状及团块状稍低密度影，最大位于右叶近膈顶，长径约7CM，动态增强后病灶呈周边环形强化，另肝左外叶见一无强化的囊状低密度灶，肝内血管显示可；脾脏未见肿大，密度均匀；胆囊底壁可疑增厚伴中度强化，胆管未见扩张；双肾盂内见点状致密影，胰腺无殊；子宫体积稍大，增强后宫颈处见多发类圆形低密度灶，后腹膜未见肿大淋巴结；腹腔内、肠系膜根部见多发稍增大淋巴结，盆腔内少量积液。右盆部皮下脂肪层内见结节灶。右乳腺MT术后，肝内多发转移灶，腹腔多发增大淋巴结，右侧胸腔及盆腔少量积液，总体较老片(16-12-20)进展；轻度脂肪肝，肝囊肿，双肾小结石，子宫颈多发小囊肿，胆囊腺肌症可能，同前相仿；右盆部皮下结节灶，较前增大。</t>
-  </si>
-  <si>
-    <t>右肺癌化疗后，右肺下叶肿块，较前未见明显变化。右下肺叶背段小结节，可疑转移瘤，较前未见明显变化。双侧锁骨上窝、纵隔、双肺门多发淋巴结，较前未见明显变化。右肺上叶后段小钙化灶。肝脏未见明显病变。双肾小结石，双肾小囊肿。右肺癌化疗后，与2014-06-20CT片对比：右肺下叶见一肿块，大小约29MM×47MM，较前未见明显变化，边界清晰，边缘见毛刺及分叶，增强扫描呈轻度强化，肿块外侧见片状致密影及纤维条索，边界稍模糊。右下肺叶背段见一小结节，直径约4MM，轮廓尚光整，密度尚均匀。右肺上叶后段见一斑点状钙化灶。余双肺纹理清晰，肺内未见实质性病变。右肺下叶外基底段支气管部分分支变窄，气管及余支气管分支通畅。双侧锁骨上窝、右侧气管食管沟、双上下气管旁、血管前、隆突下、双肺门见多发肿大淋巴结，最大者约24MM×19MM，边界不清，部分相互融合，增强扫描呈不均匀强化，较前未见明显变化。双侧胸腔未见积液，右下胸膜稍增厚，左侧胸膜未见增厚、粘连。肝脏形态、各叶比例未见异常，其外形轮廓光整，密度均匀，增强扫描未见异常强化灶。肝内外胆管未见异常，其内未见结石，胆囊未见异常。肝门区未见异常。门静脉未见异常。脾脏、胰腺大小、形态、密度未见异常，增强扫描未见异常强化。双侧肾上腺未见异常。双肾见数个斑点状致密灶，双肾见数个类圆形低密度灶，最大者约6MM×5MM，边界清晰，增强扫描未见强化。腹主动脉旁未见肿大淋巴结。扫描范围内所见骨质未见明确破坏征象。</t>
+    <t>肝实质密度普遍降低,肝左右叶见多发结节状及团块状稍低密度影,最大位于右叶近膈顶,长径约7CM,动态增强后病灶呈周边环形强化,另肝左外叶见一无强化的囊状低密度灶,肝内血管显示可;脾脏未见肿大,密度均匀;胆囊底壁可疑增厚伴中度强化,胆管未见扩张;双肾盂内见点状致密影,胰腺无殊;子宫体积稍大,增强后宫颈处见多发类圆形低密度灶,后腹膜未见肿大淋巴结;腹腔内、肠系膜根部见多发稍增大淋巴结,盆腔内少量积液。右盆部皮下脂肪层内见结节灶。右乳腺MT术后,肝内多发转移灶,腹腔多发增大淋巴结,右侧胸腔及盆腔少量积液,总体较老片(16-12-20)进展;轻度脂肪肝,肝囊肿,双肾小结石,子宫颈多发小囊肿,胆囊腺肌症可能,同前相仿;右盆部皮下结节灶,较前增大。</t>
+  </si>
+  <si>
+    <t>右肺癌化疗后,右肺下叶肿块,较前未见明显变化。右下肺叶背段小结节,可疑转移瘤,较前未见明显变化。双侧锁骨上窝、纵隔、双肺门多发淋巴结,较前未见明显变化。右肺上叶后段小钙化灶。肝脏未见明显病变。双肾小结石,双肾小囊肿。右肺癌化疗后,与2014-06-20CT片对比:右肺下叶见一肿块,大小约29MM×47MM,较前未见明显变化,边界清晰,边缘见毛刺及分叶,增强扫描呈轻度强化,肿块外侧见片状致密影及纤维条索,边界稍模糊。右下肺叶背段见一小结节,直径约4MM,轮廓尚光整,密度尚均匀。右肺上叶后段见一斑点状钙化灶。余双肺纹理清晰,肺内未见实质性病变。右肺下叶外基底段支气管部分分支变窄,气管及余支气管分支通畅。双侧锁骨上窝、右侧气管食管沟、双上下气管旁、血管前、隆突下、双肺门见多发肿大淋巴结,最大者约24MM×19MM,边界不清,部分相互融合,增强扫描呈不均匀强化,较前未见明显变化。双侧胸腔未见积液,右下胸膜稍增厚,左侧胸膜未见增厚、粘连。肝脏形态、各叶比例未见异常,其外形轮廓光整,密度均匀,增强扫描未见异常强化灶。肝内外胆管未见异常,其内未见结石,胆囊未见异常。肝门区未见异常。门静脉未见异常。脾脏、胰腺大小、形态、密度未见异常,增强扫描未见异常强化。双侧肾上腺未见异常。双肾见数个斑点状致密灶,双肾见数个类圆形低密度灶,最大者约6MM×5MM,边界清晰,增强扫描未见强化。腹主动脉旁未见肿大淋巴结。扫描范围内所见骨质未见明确破坏征象。</t>
   </si>
   <si>
     <t>29MM×47MM</t>
@@ -2801,37 +2801,37 @@
     <t>右下肺叶背段</t>
   </si>
   <si>
-    <t>右乳癌术后转移化疗后，对比2016.04.07日片：肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝S1见一不规则低密度灶，大小约25MM×22MM，边界稍模糊，密度欠均匀，增强扫描不均匀强化，较前缩小；肝S2、4、7、8段另见小类圆形稍低密度灶，边界模糊，增强扫描强化不明显或轻度强化，与前片对比，较前变化不明显，大者约6MM×5MM(SE8，IM23)。肝内胆管正常，胆囊大小正常，胆总管未见扩张。门静脉所见正常。肝门区见数枚淋巴结，增强扫描环状强化，较大者短径约7MM，较前稍增大。脾大小、形态正常，密度均匀。胰腺体积缩小，实质萎缩，密度均匀。双肾见多个小类圆形低密度影，边界清，大小约2~3MM，未见强化。双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。L1椎体见2个、L2椎体见1个类圆形高密度灶，大者直径约7MM，与前片对比，L1椎体新增一高密度灶，其余高密度灶较前变化不明显。右乳癌术后转移化疗后，对比2016.04.07日片：肝S1病灶较前缩小。肝S2、4、7、8段小低密度灶，较前变化不明显，建议复查或MR检查。肝门区淋巴结，较前稍增大，考虑转移可能性大。双肾多发小囊肿。L1、L2椎体高密度灶，与前片对比，L1椎体新增一高密度灶，其余高密度灶较前变化不明显，建议复查。</t>
+    <t>右乳癌术后转移化疗后,对比2016.04.07日片:肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度不均匀。肝S1见一不规则低密度灶,大小约25MM×22MM,边界稍模糊,密度欠均匀,增强扫描不均匀强化,较前缩小;肝S2、4、7、8段另见小类圆形稍低密度灶,边界模糊,增强扫描强化不明显或轻度强化,与前片对比,较前变化不明显,大者约6MM×5MM(SE8,IM23)。肝内胆管正常,胆囊大小正常,胆总管未见扩张。门静脉所见正常。肝门区见数枚淋巴结,增强扫描环状强化,较大者短径约7MM,较前稍增大。脾大小、形态正常,密度均匀。胰腺体积缩小,实质萎缩,密度均匀。双肾见多个小类圆形低密度影,边界清,大小约2~3MM,未见强化。双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。L1椎体见2个、L2椎体见1个类圆形高密度灶,大者直径约7MM,与前片对比,L1椎体新增一高密度灶,其余高密度灶较前变化不明显。右乳癌术后转移化疗后,对比2016.04.07日片:肝S1病灶较前缩小。肝S2、4、7、8段小低密度灶,较前变化不明显,建议复查或MR检查。肝门区淋巴结,较前稍增大,考虑转移可能性大。双肾多发小囊肿。L1、L2椎体高密度灶,与前片对比,L1椎体新增一高密度灶,其余高密度灶较前变化不明显,建议复查。</t>
   </si>
   <si>
     <t>肝门区淋巴结</t>
   </si>
   <si>
-    <t>左乳癌术后双肺转移治疗后，与2013.11.15片对比：左侧乳腺缺失，左侧胸壁局部皮肤稍增厚，皮下脂肪间隙索条增多，边界欠清，大致同前。左侧胸壁约T10水平皮下脂肪间隙见一小片状软组织灶，边界欠清，大小约21MM×11MM，增强扫描轻度强化，较前未见明显变化。右乳未见明确异常。双侧腋窝未见肿大淋巴结。双肺上叶、右肺中叶及右肺下叶见多个肿块，边界欠清，最大者约30MM×23MM，边界欠清，轻度强化，较前缩小，双上肺尖肿块内可见支气管气相。气管和各支气管分支通畅。双侧锁骨上窝、双肺门、纵隔未见肿大淋巴结。双侧胸腔未见积液。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。肝S8见一片状低密度病变，大小约6MM×4MM，边界不清，增强扫描未见强化，大致同前。肝内胆管未见异常，胆囊壁不厚，胆总管未见扩张，其内未见结石。肝门区未见异常。门静脉及肝静脉所见未见异常。脾大小未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。双肾未见异常。双肾上腺未见异常。腹主动脉旁未见明显肿大的淋巴结。右侧第1~3前肋、左侧第2前肋见骨皮质密度稍增高，较前未见明显变化，右侧第5、7、8前肋骨质密度增高，较前新见。左乳癌术后双肺转移治疗后，与2013.11.15片对比：左前胸壁呈术后改变，较前变化不大。左侧胸壁约T10水平皮下脂肪间隙片状软组织灶，较前未见明显变化。双肺多发转移瘤，较前缩小。肝S8低密度灶，较前未见明显变化。右侧第1~3前肋、左侧第2前肋骨质密度稍增高，较前未见明显变化；右侧第5、7、8前肋骨质密度增高，较前新见，考虑转移可能大。</t>
+    <t>左乳癌术后双肺转移治疗后,与2013.11.15片对比:左侧乳腺缺失,左侧胸壁局部皮肤稍增厚,皮下脂肪间隙索条增多,边界欠清,大致同前。左侧胸壁约T10水平皮下脂肪间隙见一小片状软组织灶,边界欠清,大小约21MM×11MM,增强扫描轻度强化,较前未见明显变化。右乳未见明确异常。双侧腋窝未见肿大淋巴结。双肺上叶、右肺中叶及右肺下叶见多个肿块,边界欠清,最大者约30MM×23MM,边界欠清,轻度强化,较前缩小,双上肺尖肿块内可见支气管气相。气管和各支气管分支通畅。双侧锁骨上窝、双肺门、纵隔未见肿大淋巴结。双侧胸腔未见积液。肝脏形态未见异常,各叶比例在正常范围以内,其外形轮廓光整,密度欠均匀。肝S8见一片状低密度病变,大小约6MM×4MM,边界不清,增强扫描未见强化,大致同前。肝内胆管未见异常,胆囊壁不厚,胆总管未见扩张,其内未见结石。肝门区未见异常。门静脉及肝静脉所见未见异常。脾大小未见异常,密度均匀。胰腺大小、形态未见异常,密度均匀。双肾未见异常。双肾上腺未见异常。腹主动脉旁未见明显肿大的淋巴结。右侧第1~3前肋、左侧第2前肋见骨皮质密度稍增高,较前未见明显变化,右侧第5、7、8前肋骨质密度增高,较前新见。左乳癌术后双肺转移治疗后,与2013.11.15片对比:左前胸壁呈术后改变,较前变化不大。左侧胸壁约T10水平皮下脂肪间隙片状软组织灶,较前未见明显变化。双肺多发转移瘤,较前缩小。肝S8低密度灶,较前未见明显变化。右侧第1~3前肋、左侧第2前肋骨质密度稍增高,较前未见明显变化;右侧第5、7、8前肋骨质密度增高,较前新见,考虑转移可能大。</t>
   </si>
   <si>
     <t>双肺,右侧第5、7、8前肋</t>
   </si>
   <si>
-    <t>右肺下叶切除术后+纵隔淋巴结清扫术后复查：右胸壁皮下见少量条索影，右下肺术后缺如，术区见条状金属影，术区支气管残端见软组织影，包绕右中叶支气管，增强扫描可见强化。右肺中叶内侧段见片状压缩的肺组织，增强扫描明显强化，右肺中叶外侧段见斑片状影，边界欠清。右上肺及左肺内未见实质性病变。右下叶支气管缺如，右中叶支气管变窄，余气管及支气管分支通畅。右上气管旁见低密度区，边界清，未见明显强化，右锁骨上窝、双侧气管食管沟、双上下气管旁、隆突下、右肺门、右心缘见多发淋巴结，最大者约15MM×11MM，增强扫描较明显强化。右侧胸腔见水样密度影，心包腔内见少量水样密度影，左侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏外形轮廓光整，密度均匀。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉未见异常。脾稍增大，前方见一小结节，密度及强化与脾脏相仿，大小约8MM×6MM。胰腺大小、形态正常，密度均匀。双肾及双肾上腺未见异常。腹主动脉旁未见肿大淋巴结。第3胸椎左侧份内见小圆形密影，直径约4MM，余扫描层面中胸腰椎、胸壁骨及软组织未见异常。右下肺癌术后，支气管残端软组织灶，疑为肿瘤病灶。右中肺叶节段性不张。右中肺叶斑片影，考虑炎症。右锁骨上窝纵隔、右肺门右缘多发淋巴结，可疑淋巴结转移。右侧胸腔积液；心包少量积液。第3胸椎高密度小结节，考虑骨岛可能性大，建议随诊。副脾。</t>
+    <t>右肺下叶切除术后+纵隔淋巴结清扫术后复查:右胸壁皮下见少量条索影,右下肺术后缺如,术区见条状金属影,术区支气管残端见软组织影,包绕右中叶支气管,增强扫描可见强化。右肺中叶内侧段见片状压缩的肺组织,增强扫描明显强化,右肺中叶外侧段见斑片状影,边界欠清。右上肺及左肺内未见实质性病变。右下叶支气管缺如,右中叶支气管变窄,余气管及支气管分支通畅。右上气管旁见低密度区,边界清,未见明显强化,右锁骨上窝、双侧气管食管沟、双上下气管旁、隆突下、右肺门、右心缘见多发淋巴结,最大者约15MM×11MM,增强扫描较明显强化。右侧胸腔见水样密度影,心包腔内见少量水样密度影,左侧胸腔未见积液。双侧胸膜无增厚、粘连。肝脏外形轮廓光整,密度均匀。肝内胆管正常,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。肝门区正常。门静脉未见异常。脾稍增大,前方见一小结节,密度及强化与脾脏相仿,大小约8MM×6MM。胰腺大小、形态正常,密度均匀。双肾及双肾上腺未见异常。腹主动脉旁未见肿大淋巴结。第3胸椎左侧份内见小圆形密影,直径约4MM,余扫描层面中胸腰椎、胸壁骨及软组织未见异常。右下肺癌术后,支气管残端软组织灶,疑为肿瘤病灶。右中肺叶节段性不张。右中肺叶斑片影,考虑炎症。右锁骨上窝纵隔、右肺门右缘多发淋巴结,可疑淋巴结转移。右侧胸腔积液;心包少量积液。第3胸椎高密度小结节,考虑骨岛可能性大,建议随诊。副脾。</t>
   </si>
   <si>
     <t>右锁骨上窝纵隔,右肺门右缘多发淋巴结</t>
   </si>
   <si>
-    <t>右乳癌术后、骨转移化疗后，广泛骨转移所见如上述，可疑右胸壁复发，右胸膜转移，右胸腔液气胸，右中肺及右下肺受压节段性不张，肝多发囊肿。右乳癌术后、骨转移、化疗后复查：右乳腺术后缺如，现右前胸壁皮下见结节状软组织影，注射造影剂后轻度强化；左乳腺内未见明显软组织肿；双锁上、双腋窝、内乳区未见明显肿大淋巴结。右胸膜轻度增厚，右胸腔见大量积液及少量积气，右中肺及右下肺节段性不张，右肺各叶支气管受压变窄；左肺纹理清晰，双肺未见结节影；气管及左肺各叶支气管分枝通畅；双肺门及纵隔未见明确肿大淋巴结；双侧胸腔未见积液；胸膜未见增厚。肝脏形态正常，比例正常，外形轮廓光整，密度均匀，快速注射造影剂后，动脉期未见明确异常强化灶，门脉期及平衡期未见明确低密度区，肝内见数个囊肿影，大小约为5MM×4MM至12MM×10MM，边界清晰，密度均匀，未见强化；肝内胆管未见扩张，胆囊大小正常，内未见结石影，胆总管未见扩张；肝门区未见肿大淋巴结；门静脉未见充盈缺损；脾增大，密度均匀；胰腺大小、形态正常，密度均匀；双肾大小、形态正常，排泌功能正常；双侧肾上腺大小、形态、密度正常；膈脚后、腹主动脉旁未见肿大淋巴结。扫描范围内胸骨、双侧肩胛骨、多个胸椎、腰椎、肋骨见成骨性骨质破坏征象。</t>
+    <t>右乳癌术后、骨转移化疗后,广泛骨转移所见如上述,可疑右胸壁复发,右胸膜转移,右胸腔液气胸,右中肺及右下肺受压节段性不张,肝多发囊肿。右乳癌术后、骨转移、化疗后复查:右乳腺术后缺如,现右前胸壁皮下见结节状软组织影,注射造影剂后轻度强化;左乳腺内未见明显软组织肿;双锁上、双腋窝、内乳区未见明显肿大淋巴结。右胸膜轻度增厚,右胸腔见大量积液及少量积气,右中肺及右下肺节段性不张,右肺各叶支气管受压变窄;左肺纹理清晰,双肺未见结节影;气管及左肺各叶支气管分枝通畅;双肺门及纵隔未见明确肿大淋巴结;双侧胸腔未见积液;胸膜未见增厚。肝脏形态正常,比例正常,外形轮廓光整,密度均匀,快速注射造影剂后,动脉期未见明确异常强化灶,门脉期及平衡期未见明确低密度区,肝内见数个囊肿影,大小约为5MM×4MM至12MM×10MM,边界清晰,密度均匀,未见强化;肝内胆管未见扩张,胆囊大小正常,内未见结石影,胆总管未见扩张;肝门区未见肿大淋巴结;门静脉未见充盈缺损;脾增大,密度均匀;胰腺大小、形态正常,密度均匀;双肾大小、形态正常,排泌功能正常;双侧肾上腺大小、形态、密度正常;膈脚后、腹主动脉旁未见肿大淋巴结。扫描范围内胸骨、双侧肩胛骨、多个胸椎、腰椎、肋骨见成骨性骨质破坏征象。</t>
   </si>
   <si>
     <t>骨,右胸膜</t>
   </si>
   <si>
-    <t>左上肺癌胸膜复发化疗后复查，无旧片对比：左侧胸膜弥漫不规则增厚及结节样病灶，考虑转移灶。右肺上叶胸膜小结节，考虑良性增生结节。左侧胸腔积液。右乳腺缺如。肝内多发低密度灶，考虑血管瘤，基本同前。肾多发小囊肿。左上肺癌胸膜转移化疗后复查，无旧片对比：左上肺叶部分术后缺失，左侧胸膜、叶间裂见弥漫不规则增厚及结节样病灶，最大约26MM×24MM，界欠清，增强后不均匀明显强化。右肺上叶前段见胸膜见小结节，短径约4MM，界尚清，增强未见明显强化。肺内未见异常实质性改变。气管及支气管分支通畅，未见明显软组织肿物或受压变窄。双侧腋窝、双肺门及纵隔未见肿大淋巴结。左侧胸腔积液，右侧胸腔未见积液。右侧乳腺缺失，胸壁未见明显异常。左侧乳腺未见明显异常肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。肝S4、S7、S8见多个结节状病灶，最大约为13MM×12MM，增强扫描见结节状强化或边缘呈结节强化，静脉期强化范围增加，较前无明显变化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影。胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾见多个小囊性病灶。双肾上腺所见正常。膈脚后未见肿大淋巴结。腹膜后未见肿大淋巴结。多个胸椎内见小点状稍高密度影，境界较清，较前未见明显变化。</t>
+    <t>左上肺癌胸膜复发化疗后复查,无旧片对比:左侧胸膜弥漫不规则增厚及结节样病灶,考虑转移灶。右肺上叶胸膜小结节,考虑良性增生结节。左侧胸腔积液。右乳腺缺如。肝内多发低密度灶,考虑血管瘤,基本同前。肾多发小囊肿。左上肺癌胸膜转移化疗后复查,无旧片对比:左上肺叶部分术后缺失,左侧胸膜、叶间裂见弥漫不规则增厚及结节样病灶,最大约26MM×24MM,界欠清,增强后不均匀明显强化。右肺上叶前段见胸膜见小结节,短径约4MM,界尚清,增强未见明显强化。肺内未见异常实质性改变。气管及支气管分支通畅,未见明显软组织肿物或受压变窄。双侧腋窝、双肺门及纵隔未见肿大淋巴结。左侧胸腔积液,右侧胸腔未见积液。右侧乳腺缺失,胸壁未见明显异常。左侧乳腺未见明显异常肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度欠均匀。肝S4、S7、S8见多个结节状病灶,最大约为13MM×12MM,增强扫描见结节状强化或边缘呈结节强化,静脉期强化范围增加,较前无明显变化。肝内胆管正常,其内未见结石影,胆囊大小正常,其内未见结石影。胆总管未见扩张,其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。双肾见多个小囊性病灶。双肾上腺所见正常。膈脚后未见肿大淋巴结。腹膜后未见肿大淋巴结。多个胸椎内见小点状稍高密度影,境界较清,较前未见明显变化。</t>
   </si>
   <si>
     <t>左上肺叶</t>
   </si>
   <si>
-    <t>右侧肺门区见一肿物，边界不清，最大层面大小约73MM×56MM，密度不均，增强扫描后较明显强化。肿物截断右肺中叶及下叶支气管，并包绕右肺动脉。右肺中叶及下叶不张体积缩小，呈片状高密度影，内见肺血管走形，不张肺组织与肺门肿物分界不清。右肺门、隆突下、血管前、右上下气管旁、左下气管旁及右侧锁骨上区见多发肿大淋巴结，融合呈团，部分与肺门肿物分界不清，大者大小约59MM×54MM，增强后不均匀强化。右肺上叶多发模糊斑片影及类结节灶，近水平裂处为著，边界欠清。左肺下叶背段小类结节灶，边界清，大小约3MM×3MM(SE9，IM252)，气管及左侧支气管分支通畅。左侧腋窝见一淋巴结，大小约11MM×11MM，密度欠均匀。右侧腋窝未见肿大淋巴结。右侧胸腔少量积液；左侧胸腔未见积液。右上胸膜局部不规则增厚，可见强化。左后胸壁见一肿物(SE9，IM174)，边界不清，大小约36MM×19MM，增强扫描后明显强化，肿物与左侧第6后肋分界不清，第6后肋骨皮质中断破坏。肝脏内见多发结节、肿物，边界模糊，大者大小约45MM×51MM，增强后呈环形强化。肝内另见小低密度灶，边界清，直径约2-4MM，未见强化。肝内外胆管未见异常。胆囊未见异常。门静脉未见异常。肝门区、门腔间隙、腹腔干周围见多发肿大淋巴结，大者大小约24MM×43MM。脾、胰腺大小、形态正常，密度均匀。双肾见几个囊性灶(右肾2个，左肾1个)，边界清，大者直径约6MM，未见强化。右侧肾上腺稍增粗；左侧肾上腺未见正常。膀胱充盈良好，境界清楚。精囊、前列腺、直肠未见明显异常。腹主动脉旁、双侧髂血管旁、腹股沟未见肿大淋巴结。余扫描所见骨质未见明确异常。右肺门肿物，符合中央型肺癌，并右肺中叶、下叶肺不张。右肺门、纵隔、右上锁骨上区、肝门区、门腔间隙、腹腔干周围多发肿大淋巴结，考虑转移。左侧腋窝淋巴结，可疑转移。右肺上叶斑片影及类结节灶，考虑炎症可能；左肺下叶背段纤维增殖灶。右上胸膜增厚，转移待排；右侧胸腔积液。左后胸壁肿物并左侧第6后肋骨质破坏，考虑转移。肝脏多发转移瘤。右肾上腺增粗，考虑转移。双肾小囊肿。盆腔未见明确异常。</t>
+    <t>右侧肺门区见一肿物,边界不清,最大层面大小约73MM×56MM,密度不均,增强扫描后较明显强化。肿物截断右肺中叶及下叶支气管,并包绕右肺动脉。右肺中叶及下叶不张体积缩小,呈片状高密度影,内见肺血管走形,不张肺组织与肺门肿物分界不清。右肺门、隆突下、血管前、右上下气管旁、左下气管旁及右侧锁骨上区见多发肿大淋巴结,融合呈团,部分与肺门肿物分界不清,大者大小约59MM×54MM,增强后不均匀强化。右肺上叶多发模糊斑片影及类结节灶,近水平裂处为著,边界欠清。左肺下叶背段小类结节灶,边界清,大小约3MM×3MM(SE9,IM252),气管及左侧支气管分支通畅。左侧腋窝见一淋巴结,大小约11MM×11MM,密度欠均匀。右侧腋窝未见肿大淋巴结。右侧胸腔少量积液;左侧胸腔未见积液。右上胸膜局部不规则增厚,可见强化。左后胸壁见一肿物(SE9,IM174),边界不清,大小约36MM×19MM,增强扫描后明显强化,肿物与左侧第6后肋分界不清,第6后肋骨皮质中断破坏。肝脏内见多发结节、肿物,边界模糊,大者大小约45MM×51MM,增强后呈环形强化。肝内另见小低密度灶,边界清,直径约2-4MM,未见强化。肝内外胆管未见异常。胆囊未见异常。门静脉未见异常。肝门区、门腔间隙、腹腔干周围见多发肿大淋巴结,大者大小约24MM×43MM。脾、胰腺大小、形态正常,密度均匀。双肾见几个囊性灶(右肾2个,左肾1个),边界清,大者直径约6MM,未见强化。右侧肾上腺稍增粗;左侧肾上腺未见正常。膀胱充盈良好,境界清楚。精囊、前列腺、直肠未见明显异常。腹主动脉旁、双侧髂血管旁、腹股沟未见肿大淋巴结。余扫描所见骨质未见明确异常。右肺门肿物,符合中央型肺癌,并右肺中叶、下叶肺不张。右肺门、纵隔、右上锁骨上区、肝门区、门腔间隙、腹腔干周围多发肿大淋巴结,考虑转移。左侧腋窝淋巴结,可疑转移。右肺上叶斑片影及类结节灶,考虑炎症可能;左肺下叶背段纤维增殖灶。右上胸膜增厚,转移待排;右侧胸腔积液。左后胸壁肿物并左侧第6后肋骨质破坏,考虑转移。肝脏多发转移瘤。右肾上腺增粗,考虑转移。双肾小囊肿。盆腔未见明确异常。</t>
   </si>
   <si>
     <t>右侧肺门</t>
@@ -2843,7 +2843,7 @@
     <t>右肺门,纵隔,右上锁骨上区,肝门区,门腔间隙,腹腔干周围多发肿大淋巴结,左侧腋窝淋巴结,左后胸壁,肝脏,右肾上腺</t>
   </si>
   <si>
-    <t>右肺下叶后基底段可见一软组织肿块，边缘分叶，与邻近胸膜关系密切，最大截面约为4.2CM×3.5CM，增强后中度强化，双肺野内可见多发大小不一的结节影，大者长径约为1.8CM，10R、纵隔内2R、4R、4L、7区、双锁上、右侧心膈角区可见多发肿大淋巴结，大者短径约为1.2CM；右侧胸膜条形增厚伴强化，右侧胸腔可见液性密度影。T11椎体可见明显溶骨性骨质破坏影。右肺下叶癌并右侧胸膜转移、右肺门、纵隔、双锁上、右侧心膈角多发淋巴结转移、双肺多发转移、T11骨转移；右侧胸腔积液。</t>
+    <t>右肺下叶后基底段可见一软组织肿块,边缘分叶,与邻近胸膜关系密切,最大截面约为4.2CM×3.5CM,增强后中度强化,双肺野内可见多发大小不一的结节影,大者长径约为1.8CM,10R、纵隔内2R、4R、4L、7区、双锁上、右侧心膈角区可见多发肿大淋巴结,大者短径约为1.2CM;右侧胸膜条形增厚伴强化,右侧胸腔可见液性密度影。T11椎体可见明显溶骨性骨质破坏影。右肺下叶癌并右侧胸膜转移、右肺门、纵隔、双锁上、右侧心膈角多发淋巴结转移、双肺多发转移、T11骨转移;右侧胸腔积液。</t>
   </si>
   <si>
     <t>4.2CM×3.5CM</t>
@@ -2852,13 +2852,13 @@
     <t>右侧胸膜,右肺门,纵隔,双锁上,右侧心膈角多发淋巴结,双肺,T11</t>
   </si>
   <si>
-    <t>1.右肺下叶肺癌，较前片(2016-10-17)范围明显缩小；2.双肺粟粒灶，左肺上叶舌段斑片灶，请随诊；3.多发骨转移征象；双侧多发肋骨陈旧性骨折；部分椎体术后改变；请结合临床；4.全心增大，主动脉及冠状动脉钙化。双肺支气管血管束增强。右肺下叶可见条片影，边缘模糊，范围约3.4CM×1.0CM。右肺上叶前段胸膜下(41)、左肺下叶血管旁(26)、左肺下叶胸膜下(27)粟粒灶；左肺上叶舌段(35)斑片灶；纵隔见多发小淋巴结影，较大者短径约0.8CM。两胸腔未见积液征象。全心增大，主动脉、冠脉壁见条状致密影。左侧锁骨胸骨端、胸骨、多个椎体及附件骨内可见类圆形致密影；双侧部分肋骨形态不整，左侧第5后肋骨质破坏。部分椎体内见金属固定物影。</t>
+    <t>1.右肺下叶肺癌,较前片(2016-10-17)范围明显缩小;2.双肺粟粒灶,左肺上叶舌段斑片灶,请随诊;3.多发骨转移征象;双侧多发肋骨陈旧性骨折;部分椎体术后改变;请结合临床;4.全心增大,主动脉及冠状动脉钙化。双肺支气管血管束增强。右肺下叶可见条片影,边缘模糊,范围约3.4CM×1.0CM。右肺上叶前段胸膜下(41)、左肺下叶血管旁(26)、左肺下叶胸膜下(27)粟粒灶;左肺上叶舌段(35)斑片灶;纵隔见多发小淋巴结影,较大者短径约0.8CM。两胸腔未见积液征象。全心增大,主动脉、冠脉壁见条状致密影。左侧锁骨胸骨端、胸骨、多个椎体及附件骨内可见类圆形致密影;双侧部分肋骨形态不整,左侧第5后肋骨质破坏。部分椎体内见金属固定物影。</t>
   </si>
   <si>
     <t>3.4CM×1.0CM</t>
   </si>
   <si>
-    <t>右肺上叶尖段肿物，侵及胸壁肋骨及软组织，恶性，肺癌可能大。双肺多发结节，考虑转移。右侧胸膜增厚伴少量胸水，转移可能大。少量心包积液，追查。胸8椎体密度不均伴轻度楔形变，胸椎多个椎体密度不均，转移可能，请结合骨扫描。双侧肾上腺增粗，转移不除外。追查。右肺门及纵隔2R、4R、7组见多发肿大淋巴结，较大约19MM×10MM(IM31)，双侧锁骨上淋巴结显示，短径小于10MM。右肺上叶尖段见不规则软组织密度肿块，边界欠清，强化不均，约58MM×48MM(IM15)；内部见不规则钙化灶，外周见实变肺及少量积液；肿物向后上方侵犯累及右侧第2-4后肋。余双肺见散在分布多发大小不等结节，较大约9MM(IM18、40、42)。双肺下叶基底段见模糊斑片索条影。左侧胸膜欠光滑，未见胸水。心包内少量积液。胸8椎体骨质密度不均，略呈楔形；胸2、3、10椎体见不均匀骨质密度轻度增高。扫及双侧肾上腺增粗(IM61、65)。</t>
+    <t>右肺上叶尖段肿物,侵及胸壁肋骨及软组织,恶性,肺癌可能大。双肺多发结节,考虑转移。右侧胸膜增厚伴少量胸水,转移可能大。少量心包积液,追查。胸8椎体密度不均伴轻度楔形变,胸椎多个椎体密度不均,转移可能,请结合骨扫描。双侧肾上腺增粗,转移不除外。追查。右肺门及纵隔2R、4R、7组见多发肿大淋巴结,较大约19MM×10MM(IM31),双侧锁骨上淋巴结显示,短径小于10MM。右肺上叶尖段见不规则软组织密度肿块,边界欠清,强化不均,约58MM×48MM(IM15);内部见不规则钙化灶,外周见实变肺及少量积液;肿物向后上方侵犯累及右侧第2-4后肋。余双肺见散在分布多发大小不等结节,较大约9MM(IM18、40、42)。双肺下叶基底段见模糊斑片索条影。左侧胸膜欠光滑,未见胸水。心包内少量积液。胸8椎体骨质密度不均,略呈楔形;胸2、3、10椎体见不均匀骨质密度轻度增高。扫及双侧肾上腺增粗(IM61、65)。</t>
   </si>
   <si>
     <t>58MM×48MM</t>
@@ -2867,7 +2867,7 @@
     <t>双肺,右侧胸膜,胸椎,双侧肾上腺</t>
   </si>
   <si>
-    <t>乳腺MT综合治疗后病例：两肺多发转移，胸骨、左股骨上段骨转移；纵隔及左肺门炎性淋巴结可能，请随访；肝脏囊肿及小钙化灶；甲状腺良性病变可能，请结合超声检查。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET/CT图像示甲状腺弥漫性糖代谢增强，最大SUV值为3.5，未见占位。双侧颈部、锁骨区未见明显糖代谢异常增高或肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示左侧乳腺术后缺如，左胸壁呈术后改变，术区未见糖代谢异常增高灶及占位。左肺上叶下舌段近叶间裂、右肺下叶后基底段及左肺下叶外侧基底段见3枚大小不等结节影，边界清晰，伴糖代谢不同程度增高，最大且糖代谢最高者位于左肺上叶下舌段，大小约为18.7MM×11.7MM，最大SUV值为4.7；纵隔气管隆突下及左肺门各见一肿大淋巴结，大小分别为18.3MM×10.0MM和12.2MM×11.2MM，伴糖代谢轻度增高，最大SUV值分别为4.4和4.7；右肺门影无殊；双侧胸膜无增厚；双侧胸腔无积液；心脏无明显增大；双侧腋窝及右侧乳腺未见明显糖代谢增高灶及占位。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，肝实质内见2枚囊性低密度灶，较大者位于左内叶，大小约为21.8MM×20.1MM；肝脏右后叶下角钙化灶；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；胆囊、胰、双肾、肾上腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈，壁光滑无增厚；子宫和双附件区未见明显占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示胸骨局部及左侧股骨上段溶骨性骨质破坏伴糖代谢异常增高，最大SUV值分别为6.1和9.8，髓腔内见软组织密度影。腰椎侧弯；第3、5腰椎椎体内见无糖代谢增高的点状高密度影，考虑为骨岛；腰骶椎部分椎体前缘及椎小关节骨质增生，以第5腰椎/第1骶椎为著，糖代谢未见异常增高，考虑为退行性变；余所示诸骨未见明显糖代谢异常增高或骨质破坏。</t>
+    <t>乳腺MT综合治疗后病例:两肺多发转移,胸骨、左股骨上段骨转移;纵隔及左肺门炎性淋巴结可能,请随访;肝脏囊肿及小钙化灶;甲状腺良性病变可能,请结合超声检查。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼内肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。双侧额窦、筛窦、蝶窦和上颌窦未见明显异常。颈部PET/CT图像示甲状腺弥漫性糖代谢增强,最大SUV值为3.5,未见占位。双侧颈部、锁骨区未见明显糖代谢异常增高或肿大淋巴结;口咽、喉咽部无占位;甲状腺无肿大,未见明显占位。胸部PET/CT图像示左侧乳腺术后缺如,左胸壁呈术后改变,术区未见糖代谢异常增高灶及占位。左肺上叶下舌段近叶间裂、右肺下叶后基底段及左肺下叶外侧基底段见3枚大小不等结节影,边界清晰,伴糖代谢不同程度增高,最大且糖代谢最高者位于左肺上叶下舌段,大小约为18.7MM×11.7MM,最大SUV值为4.7;纵隔气管隆突下及左肺门各见一肿大淋巴结,大小分别为18.3MM×10.0MM和12.2MM×11.2MM,伴糖代谢轻度增高,最大SUV值分别为4.4和4.7;右肺门影无殊;双侧胸膜无增厚;双侧胸腔无积液;心脏无明显增大;双侧腋窝及右侧乳腺未见明显糖代谢增高灶及占位。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强;肠道呈线型生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整,各叶比例匀称,肝实质内见2枚囊性低密度灶,较大者位于左内叶,大小约为21.8MM×20.1MM;肝脏右后叶下角钙化灶;肝内外胆管无扩张;脾脏不大,密度均,未见明显占位;胆囊、胰、双肾、肾上腺无殊;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈,壁光滑无增厚;子宫和双附件区未见明显占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET/CT图像示胸骨局部及左侧股骨上段溶骨性骨质破坏伴糖代谢异常增高,最大SUV值分别为6.1和9.8,髓腔内见软组织密度影。腰椎侧弯;第3、5腰椎椎体内见无糖代谢增高的点状高密度影,考虑为骨岛;腰骶椎部分椎体前缘及椎小关节骨质增生,以第5腰椎/第1骶椎为著,糖代谢未见异常增高,考虑为退行性变;余所示诸骨未见明显糖代谢异常增高或骨质破坏。</t>
   </si>
   <si>
     <t>乳腺,左侧</t>
@@ -2876,25 +2876,25 @@
     <t>两肺,胸骨,左股骨</t>
   </si>
   <si>
-    <t>右肺癌化疗后，与2013-03-05对比：双肺多发病变，较前增大。甲状腺右叶结节性甲状腺肿，较前未见明显变化。第11胸椎血管瘤。第9胸椎体骨转移可能性大。右肺癌化疗后复查：双肺见多发结节状病灶，最大者大小约22MM×32MM，部分病灶边界欠光整，可见分叶及毛刺征，密度不均匀，增强后不均匀强化。对比前片，病灶数目大致同前，大小见增大。左肺门见一肿大淋巴结，短径约5MM，轻度强化。纵隔、右肺门未见肿大淋巴结。双胸腔未见积液；双侧胸膜未见增厚、粘连。甲状腺右叶见一椭圆形低密度灶，边界清，大小约6MM×9MM，内见斑点状致密灶，增强扫描时未见强化。第11胸椎见一类圆形稍低密度病变，大小约14MM×13MM，其内呈“栅栏状”改变。第9胸椎体右份见范围约12MM×13MM的密度增高影，密度不均匀。其余胸腰椎、胸壁骨未见明确破坏征象。</t>
+    <t>右肺癌化疗后,与2013-03-05对比:双肺多发病变,较前增大。甲状腺右叶结节性甲状腺肿,较前未见明显变化。第11胸椎血管瘤。第9胸椎体骨转移可能性大。右肺癌化疗后复查:双肺见多发结节状病灶,最大者大小约22MM×32MM,部分病灶边界欠光整,可见分叶及毛刺征,密度不均匀,增强后不均匀强化。对比前片,病灶数目大致同前,大小见增大。左肺门见一肿大淋巴结,短径约5MM,轻度强化。纵隔、右肺门未见肿大淋巴结。双胸腔未见积液;双侧胸膜未见增厚、粘连。甲状腺右叶见一椭圆形低密度灶,边界清,大小约6MM×9MM,内见斑点状致密灶,增强扫描时未见强化。第11胸椎见一类圆形稍低密度病变,大小约14MM×13MM,其内呈“栅栏状”改变。第9胸椎体右份见范围约12MM×13MM的密度增高影,密度不均匀。其余胸腰椎、胸壁骨未见明确破坏征象。</t>
   </si>
   <si>
     <t>第9胸椎体</t>
   </si>
   <si>
-    <t>全身PET/CT图像示：右肺MT，右锁骨上、左上气管旁、纵隔及右肺门、后腹膜淋巴结转移；右侧胸腔积液；右侧额叶无明显糖代谢增高的稍高密灶，请结合MRI检查；右肾无糖代谢增高的低密度灶，考虑良性病变；右侧第8前肋骨皮质稍厚无糖代谢增高，请随访。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET/CT图像示右侧额叶见直径约6MM稍高密度灶，周围未见明显低密度水肿区，早期及1小时延迟相均未见明显糖代谢异常增高。双侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常。各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶、鼻咽PET/CT图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶及占位。颈部PET/CT图像示右侧锁骨上及左上气管旁见数枚糖代谢增高的淋巴结，最大者位于右锁骨上，约14.0MM×13.4MM，最大SUV值约3.3。甲状腺未见明显糖代谢异常增高灶及占位。胸部PET/CT图像示右肺上叶及中叶近肺门见边界不清的软组织密度影，伴糖代谢异常增高，最大SUV值约5.1。纵隔及右肺门见多发糖代谢增高的淋巴结，最大者约25.2MM×16.5MM，最大SUV值约4.3。右侧胸腔积液。胸壁、腋窝未见明显糖代谢异常增高灶。心脏不大；双侧腋窝无明显肿大淋巴结。腹部PET/CT图像示后腹膜见数枚伴轻度糖代谢的淋巴结，最大者约12.7MM×9.5MM，最大SUV值约2.6。胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内未见异常占位；肝内外胆管无扩张；脾脏不大，密度均，未见异常占位；右肾见直径约11.7MM低密度灶；胆囊、胰、左肾、肾上腺无殊；腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈，壁光滑无增厚；双侧精囊腺形态可；双侧膀胱精囊三角对称；前列腺不大，密度均；盆腔内未见占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示右侧第8前肋骨皮质略增厚，局部未见明显糖代谢异常增高。余所示诸骨未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见异常。</t>
+    <t>全身PET/CT图像示:右肺MT,右锁骨上、左上气管旁、纵隔及右肺门、后腹膜淋巴结转移;右侧胸腔积液;右侧额叶无明显糖代谢增高的稍高密灶,请结合MRI检查;右肾无糖代谢增高的低密度灶,考虑良性病变;右侧第8前肋骨皮质稍厚无糖代谢增高,请随访。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET/CT图像示右侧额叶见直径约6MM稍高密度灶,周围未见明显低密度水肿区,早期及1小时延迟相均未见明显糖代谢异常增高。双侧基底节、丘脑、小脑放射性分布对称,未见明显糖代谢异常。各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶、鼻咽PET/CT图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶及占位。颈部PET/CT图像示右侧锁骨上及左上气管旁见数枚糖代谢增高的淋巴结,最大者位于右锁骨上,约14.0MM×13.4MM,最大SUV值约3.3。甲状腺未见明显糖代谢异常增高灶及占位。胸部PET/CT图像示右肺上叶及中叶近肺门见边界不清的软组织密度影,伴糖代谢异常增高,最大SUV值约5.1。纵隔及右肺门见多发糖代谢增高的淋巴结,最大者约25.2MM×16.5MM,最大SUV值约4.3。右侧胸腔积液。胸壁、腋窝未见明显糖代谢异常增高灶。心脏不大;双侧腋窝无明显肿大淋巴结。腹部PET/CT图像示后腹膜见数枚伴轻度糖代谢的淋巴结,最大者约12.7MM×9.5MM,最大SUV值约2.6。胃壁均匀性轻度生理性糖代谢增强;肠道呈线型生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整,各叶比例匀称,实质内未见异常占位;肝内外胆管无扩张;脾脏不大,密度均,未见异常占位;右肾见直径约11.7MM低密度灶;胆囊、胰、左肾、肾上腺无殊;腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈,壁光滑无增厚;双侧精囊腺形态可;双侧膀胱精囊三角对称;前列腺不大,密度均;盆腔内未见占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET/CT图像示右侧第8前肋骨皮质略增厚,局部未见明显糖代谢异常增高。余所示诸骨未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见异常。</t>
   </si>
   <si>
     <t>右锁骨上,左上气管旁,纵隔及右肺门,后腹膜淋巴结</t>
   </si>
   <si>
-    <t>右肺癌术后右膈肌转移瘤术后化疗后及靶向治疗复查，对比2016-08-26片：右肺下叶术后缺失，局部未见明确复发。右侧胸膜增厚、粘连，同前相仿。左侧锁骨上窝淋巴结较前变化不大。肝囊肿。双肾囊肿。肝门区、门腔间隙、腹膜后淋巴结，，考虑转移性淋巴结，部分较前缩小。右侧结肠旁沟结节状软组织灶，考虑转移可能性大。右肺癌术后右膈肌转移瘤术后化疗后及靶向治疗复查，对比2016-08-26片：右肺下叶术后缺失，术区未见明确异常密度灶及强化影。右残肺充气良好，余双肺野未见明显病变；气管及残余支气管分支通畅。左侧锁骨上窝见数个小淋巴结，较大者短径约6MM，边界清晰，增强扫描轻度强化，同前相仿。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液，右侧胸膜增厚、粘连，同前相仿。肝脏形态、各叶比例未见异常，肝S6、S7见囊性灶，较大者约12MM×11MM，余肝内未见明确异常密度影。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾上腺未见异常。双肾见小囊性低密度灶，大小约7MM×6MM，边清，密度均匀，增强扫描未见强化。肝门区、门静脉-腔静脉间隙、腹主动脉与下腔静脉之间、左肾静脉后方见多发肿大淋巴结，部分相互融合，较大者约为26MM×0MM，边欠清，增强扫描可见不均匀强化，其内可见不规则低密度区，较前缩小。右侧结肠旁沟见结节状软组织灶，大小约9MM×10MM。肠系膜欠清楚，见较多索条影。右侧部分肋骨呈术后改变；余扫描范围内骨质未见明确骨质破坏。</t>
+    <t>右肺癌术后右膈肌转移瘤术后化疗后及靶向治疗复查,对比2016-08-26片:右肺下叶术后缺失,局部未见明确复发。右侧胸膜增厚、粘连,同前相仿。左侧锁骨上窝淋巴结较前变化不大。肝囊肿。双肾囊肿。肝门区、门腔间隙、腹膜后淋巴结,,考虑转移性淋巴结,部分较前缩小。右侧结肠旁沟结节状软组织灶,考虑转移可能性大。右肺癌术后右膈肌转移瘤术后化疗后及靶向治疗复查,对比2016-08-26片:右肺下叶术后缺失,术区未见明确异常密度灶及强化影。右残肺充气良好,余双肺野未见明显病变;气管及残余支气管分支通畅。左侧锁骨上窝见数个小淋巴结,较大者短径约6MM,边界清晰,增强扫描轻度强化,同前相仿。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液,右侧胸膜增厚、粘连,同前相仿。肝脏形态、各叶比例未见异常,肝S6、S7见囊性灶,较大者约12MM×11MM,余肝内未见明确异常密度影。肝内胆管正常,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。双肾上腺未见异常。双肾见小囊性低密度灶,大小约7MM×6MM,边清,密度均匀,增强扫描未见强化。肝门区、门静脉-腔静脉间隙、腹主动脉与下腔静脉之间、左肾静脉后方见多发肿大淋巴结,部分相互融合,较大者约为26MM×0MM,边欠清,增强扫描可见不均匀强化,其内可见不规则低密度区,较前缩小。右侧结肠旁沟见结节状软组织灶,大小约9MM×10MM。肠系膜欠清楚,见较多索条影。右侧部分肋骨呈术后改变;余扫描范围内骨质未见明确骨质破坏。</t>
   </si>
   <si>
     <t>肝门区,门腔间隙,腹膜后淋巴结,右侧结肠旁沟,右膈肌</t>
   </si>
   <si>
-    <t>1.左肺下叶肺癌，较前(2017-1-18)好转；双肺、左侧胸膜转移，变化不著；左侧胸膜增厚，变化不著；骨转移，较前变化不著；右侧第6后肋骨质密度增高，变化不著2.脂肪肝；肝内小结节，变化不著左肺下叶后基底段示一不规则肿块影，边缘分叶状，周围可见粗长毛刺，局部与纵隔胸膜关系密切，可见条索影同肺门相连，外周肺野可见纤维条索状密度增高影，呈明显不均匀强化，大小约2.0CM×1.3CM，左侧背侧胸膜可见轻度增厚；双肺野及左侧胸膜区可见多个结节灶，大者边缘毛糙，位于右肺下叶及肺门区，可见强化，直径约1.3CM。右肺门示淋巴结，直径约为1.0CM。肝脏密度普遍性减低，未见异常密度灶。肝左叶见一高密度结节灶，边缘较清晰。胆胰脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。多个胸腰椎体、右侧肱骨见成骨性骨改变。右侧第6后肋局部骨质密度增高。</t>
+    <t>1.左肺下叶肺癌,较前(2017-1-18)好转;双肺、左侧胸膜转移,变化不著;左侧胸膜增厚,变化不著;骨转移,较前变化不著;右侧第6后肋骨质密度增高,变化不著2.脂肪肝;肝内小结节,变化不著左肺下叶后基底段示一不规则肿块影,边缘分叶状,周围可见粗长毛刺,局部与纵隔胸膜关系密切,可见条索影同肺门相连,外周肺野可见纤维条索状密度增高影,呈明显不均匀强化,大小约2.0CM×1.3CM,左侧背侧胸膜可见轻度增厚;双肺野及左侧胸膜区可见多个结节灶,大者边缘毛糙,位于右肺下叶及肺门区,可见强化,直径约1.3CM。右肺门示淋巴结,直径约为1.0CM。肝脏密度普遍性减低,未见异常密度灶。肝左叶见一高密度结节灶,边缘较清晰。胆胰脾、双侧肾上腺及扫描野内双肾未见异常。腹腔及腹膜后未见肿大淋巴结。多个胸腰椎体、右侧肱骨见成骨性骨改变。右侧第6后肋局部骨质密度增高。</t>
   </si>
   <si>
     <t>左肺下叶后基底段</t>
@@ -2903,7 +2903,7 @@
     <t>2.0CM×1.3CM</t>
   </si>
   <si>
-    <t>右乳癌化疗后复查，对比2017-11-26PET/CT：右侧乳腺上象限见多个不规则肿块、结节，部分互相融合，较大者大小约35MM×21MM，病灶累及右侧乳头及乳晕处皮肤，乳腺腺体后脂肪间隙模糊，增强扫描不均匀明显强化，较前缩小。左乳腺实质内未见异常密度及异常强化灶。右侧腋窝及右侧内乳区见多发肿大淋巴结，边界欠清，最大者约8MM×7MM，增强扫描明显强化，较前明显缩小。双侧锁骨上区及左侧腋窝未见明显肿大淋巴结。双肺纹理清晰，右肺中叶内侧段及左肺上叶下舌段见少许斑片影、条索影，边界不清，余肺野内未见明显实质性病变。气管及支气管分支通畅。余纵膈、双肺门未见肿大淋巴结。双侧胸腔未见积液。双侧胸膜稍增厚、粘连，未见强化。肝脏大小、形态未见异常，各叶比例在正常范围内。肝内见多发稍低密度结节、肿块，边界不清，大者位于肝S7/8，最大层面范围约36MM×28MM，密度不均匀，内见坏死，邻近肝包膜凹陷，增强扫描轻度强化，较前明显缩小。肝内外胆管未见扩张，其内未见结石影，胆囊内见稍高密度结石，较大者直径约7MM，壁不厚。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀，脾门见一结节影，长径约11MM，密度及强化方式与脾相近。右肾见一小囊性灶，边界清，较大者长径约6MM，未见强化。胰腺、左肾及双肾上腺未见明确病变。胃左动脉旁、腹主动脉旁见多发淋巴结，边界欠清，较大者大小约11MM×8MM，明显强化，胃左动脉旁淋巴结稍增大，余部分淋巴结较前稍缩小。甲状腺双叶及峡部形态正常，右叶中部见一低密度结节，边界清，直径约4MM，轻度强化。喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。双侧颌下腺、双侧腮腺大小、形态正常，密度均匀。双颈II~IV区见数个淋巴结，大者约为8MM×6MM，均匀明显强化，较前相仿。左侧第2肋、右侧第4肋、T6、7、12、L2椎体及部分附件见不规则骨质密度减低，边界不清，右侧第4肋腋段骨皮质不连续，周围见骨痂形成。右侧肱骨头、L4左侧附件见类结节状高密度影。右乳癌化疗后复查，对比2017-11-26PET/CT：右乳多发肿块、结节，符合乳腺癌治疗后改变，较前缩小。右腋窝及右内乳区肿大淋巴结，考虑转移，较前明显缩小。肝内多发稍低密度结节、肿块，考虑转移瘤，较前明显缩小。胃左动脉旁、腹主动脉旁淋巴结，部分较前稍增大，考虑转移可能性大。全身多发骨质破坏，考虑转移瘤。右侧第4肋腋段病理性骨折可能。胆囊结石。右肾囊肿。副脾。右肺中叶及左肺上叶斑片影、条索影，考虑慢性炎症可能。双侧胸膜稍增厚。甲状腺右叶结节，考虑结节性甲状腺肿。双颈II~IV区淋巴结同前，考虑反应性淋巴结。</t>
+    <t>右乳癌化疗后复查,对比2017-11-26PET/CT:右侧乳腺上象限见多个不规则肿块、结节,部分互相融合,较大者大小约35MM×21MM,病灶累及右侧乳头及乳晕处皮肤,乳腺腺体后脂肪间隙模糊,增强扫描不均匀明显强化,较前缩小。左乳腺实质内未见异常密度及异常强化灶。右侧腋窝及右侧内乳区见多发肿大淋巴结,边界欠清,最大者约8MM×7MM,增强扫描明显强化,较前明显缩小。双侧锁骨上区及左侧腋窝未见明显肿大淋巴结。双肺纹理清晰,右肺中叶内侧段及左肺上叶下舌段见少许斑片影、条索影,边界不清,余肺野内未见明显实质性病变。气管及支气管分支通畅。余纵膈、双肺门未见肿大淋巴结。双侧胸腔未见积液。双侧胸膜稍增厚、粘连,未见强化。肝脏大小、形态未见异常,各叶比例在正常范围内。肝内见多发稍低密度结节、肿块,边界不清,大者位于肝S7/8,最大层面范围约36MM×28MM,密度不均匀,内见坏死,邻近肝包膜凹陷,增强扫描轻度强化,较前明显缩小。肝内外胆管未见扩张,其内未见结石影,胆囊内见稍高密度结石,较大者直径约7MM,壁不厚。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大,密度均匀,脾门见一结节影,长径约11MM,密度及强化方式与脾相近。右肾见一小囊性灶,边界清,较大者长径约6MM,未见强化。胰腺、左肾及双肾上腺未见明确病变。胃左动脉旁、腹主动脉旁见多发淋巴结,边界欠清,较大者大小约11MM×8MM,明显强化,胃左动脉旁淋巴结稍增大,余部分淋巴结较前稍缩小。甲状腺双叶及峡部形态正常,右叶中部见一低密度结节,边界清,直径约4MM,轻度强化。喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。双侧颌下腺、双侧腮腺大小、形态正常,密度均匀。双颈II~IV区见数个淋巴结,大者约为8MM×6MM,均匀明显强化,较前相仿。左侧第2肋、右侧第4肋、T6、7、12、L2椎体及部分附件见不规则骨质密度减低,边界不清,右侧第4肋腋段骨皮质不连续,周围见骨痂形成。右侧肱骨头、L4左侧附件见类结节状高密度影。右乳癌化疗后复查,对比2017-11-26PET/CT:右乳多发肿块、结节,符合乳腺癌治疗后改变,较前缩小。右腋窝及右内乳区肿大淋巴结,考虑转移,较前明显缩小。肝内多发稍低密度结节、肿块,考虑转移瘤,较前明显缩小。胃左动脉旁、腹主动脉旁淋巴结,部分较前稍增大,考虑转移可能性大。全身多发骨质破坏,考虑转移瘤。右侧第4肋腋段病理性骨折可能。胆囊结石。右肾囊肿。副脾。右肺中叶及左肺上叶斑片影、条索影,考虑慢性炎症可能。双侧胸膜稍增厚。甲状腺右叶结节,考虑结节性甲状腺肿。双颈II~IV区淋巴结同前,考虑反应性淋巴结。</t>
   </si>
   <si>
     <t>35MM×21MM</t>
@@ -2912,22 +2912,22 @@
     <t>胃左动脉旁淋巴结,右腋窝及右内乳区肿大淋巴结,肝,腹主动脉旁淋巴结,骨</t>
   </si>
   <si>
-    <t>乳腺癌治疗后复查，对比2016-3-29片：左乳癌术后，左侧前胸壁局部皮肤结节状、条片状增厚，考虑复发，较前增大。左颈VI区新见淋巴结肿大，考虑转移。右腋窝部分淋巴结较前增大，考虑转移可能性大。双锁上、纵隔小淋巴结，较前变化不大。肝S4小囊肿。左肾囊肿。双侧锁骨头、胸骨及多发椎体骨质破坏，考虑转移瘤，范围大致同前。右侧第6肋腋段骨质异常，考虑陈旧性骨折可能性大，大致同前。乳腺癌治疗后复查，对比2016-3-29片：左侧乳腺术后缺失，左侧前胸壁局部皮肤呈结节样、条片状增厚，最大约13MM×7MM，较前增大。左侧腋窝见少许条索影，未见肿大淋巴结。右侧乳腺未见肿物。右侧腋窝见数个淋巴结，最大约14MM×10MM，边界尚清，密度不均匀，增强后不均匀轻中度强化，部分较前增大。口咽、喉咽未见异常。双侧声带未见增厚。双腮腺、颌下腺未见明显异常。甲状腺峡部及双叶未见明显异常。左颈VI区见一肿大淋巴结，大小约10MM×13MM，边界尚清，密度不均匀，增强后不均匀轻度强化。左上肺近前胸壁处见散在斑片灶，边界欠清，较前相仿，余双肺未见实质性病变。气管及支气管分支通畅，未见明显软组织肿物或受压变窄。双锁骨上窝、右侧气管食管沟、主动脉旁、双下气管旁、隆突下见数个小淋巴结，较大者短径约7MM，增强扫描均匀强化，较前变化不大。双侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态、各叶比例未见异常，轮廓欠光整；肝S4见一小囊性病变，直径约4MM，增强扫描未见强化，大致同前。肝内胆管正常，其内未见结石影，胆囊不大，内未见结石，胆总管未见扩张，其内未见结石影。肝门区、门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。左肾见类圆形囊性灶，直径约7MM，边界清楚，未见强化。右肾、双肾上腺未见异常。腹主动脉旁未见肿大淋巴结。胸骨、双侧锁骨头见不规则骨质破坏，周围见少许增多软组织，增强扫描轻度强化，范围大致同前。扫描范围内多个椎体内见类圆形、结节样骨质密度增高灶，边界模糊，密度欠均匀，与前片对比，病灶范围大致同前。右侧第6肋腋段见结节状骨质密度增高影，大致同前。</t>
+    <t>乳腺癌治疗后复查,对比2016-3-29片:左乳癌术后,左侧前胸壁局部皮肤结节状、条片状增厚,考虑复发,较前增大。左颈VI区新见淋巴结肿大,考虑转移。右腋窝部分淋巴结较前增大,考虑转移可能性大。双锁上、纵隔小淋巴结,较前变化不大。肝S4小囊肿。左肾囊肿。双侧锁骨头、胸骨及多发椎体骨质破坏,考虑转移瘤,范围大致同前。右侧第6肋腋段骨质异常,考虑陈旧性骨折可能性大,大致同前。乳腺癌治疗后复查,对比2016-3-29片:左侧乳腺术后缺失,左侧前胸壁局部皮肤呈结节样、条片状增厚,最大约13MM×7MM,较前增大。左侧腋窝见少许条索影,未见肿大淋巴结。右侧乳腺未见肿物。右侧腋窝见数个淋巴结,最大约14MM×10MM,边界尚清,密度不均匀,增强后不均匀轻中度强化,部分较前增大。口咽、喉咽未见异常。双侧声带未见增厚。双腮腺、颌下腺未见明显异常。甲状腺峡部及双叶未见明显异常。左颈VI区见一肿大淋巴结,大小约10MM×13MM,边界尚清,密度不均匀,增强后不均匀轻度强化。左上肺近前胸壁处见散在斑片灶,边界欠清,较前相仿,余双肺未见实质性病变。气管及支气管分支通畅,未见明显软组织肿物或受压变窄。双锁骨上窝、右侧气管食管沟、主动脉旁、双下气管旁、隆突下见数个小淋巴结,较大者短径约7MM,增强扫描均匀强化,较前变化不大。双侧胸膜未见增厚。双侧胸腔未见积液。肝脏形态、各叶比例未见异常,轮廓欠光整;肝S4见一小囊性病变,直径约4MM,增强扫描未见强化,大致同前。肝内胆管正常,其内未见结石影,胆囊不大,内未见结石,胆总管未见扩张,其内未见结石影。肝门区、门静脉所见正常。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。左肾见类圆形囊性灶,直径约7MM,边界清楚,未见强化。右肾、双肾上腺未见异常。腹主动脉旁未见肿大淋巴结。胸骨、双侧锁骨头见不规则骨质破坏,周围见少许增多软组织,增强扫描轻度强化,范围大致同前。扫描范围内多个椎体内见类圆形、结节样骨质密度增高灶,边界模糊,密度欠均匀,与前片对比,病灶范围大致同前。右侧第6肋腋段见结节状骨质密度增高影,大致同前。</t>
   </si>
   <si>
     <t>左颈VI区,淋巴结,右腋窝部分淋巴结,双侧锁骨头,胸骨,椎体</t>
   </si>
   <si>
-    <t>左下肺MT综合治疗后，与2012-4-12本院PET/CT图像相比，两肺多发转移，肝左叶转移为新增病灶；全身骨骼多处转移，部分为新增病灶；左锁骨区淋巴结转移较前增多，糖代谢程度增高；右锁骨区淋巴结转移灶大小相仿，糖代谢程度较前略减低；内乳、纵隔转移性淋巴结较前缩小，糖代谢程度减低；后腹膜淋巴结转移，病灶较前增多，糖代谢略减低；余同前。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像，并与2012.04.12本院PET/CT图像比较。脑部PET/CT图像示脑内多发无糖代谢增高的小低密度灶，较前片相仿；余脑皮质及双侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部及鼻咽部PET/CT图像示眶内及鼻咽部结构及其糖代谢未见明显异常。颈部PET/CT图像示双侧锁骨区见多发糖代谢异常增高的肿大淋巴结，左侧最大者大小为17.5MM×10.5MM，最大SUV值5.06，右侧最大者大小为19.5MM×14.8MM，最大SUV值3.35；较前片左侧锁骨区肿大淋巴结增大，糖代谢程度增高，右侧锁骨区肿大淋巴结大小较前相仿，糖代谢略减低；余双侧颈部、甲状腺等均未见明显糖代谢异常增高灶及占位性病变。胸部PET/CT图像示左下肺MT术后，右肺上叶尖段和前段见糖代谢异常增高的不规则结节影，边缘模糊，最大SUV值6.49，延迟1.5小时后最大SUV值7.81，滞留指数为20.3%；两肺另见多发早期及延迟1.5小时相均无明显糖代谢异常增高的微小结节影，最大者直径约7.5MM，纵隔、右侧内乳、双侧肺门见糖代谢增高淋巴结，最大者约14.8MM×13.5MM，最大SUV值4.71，位于右侧肺门；纵隔及右侧内乳多发糖代谢异常增高的肿大淋巴结较前缩小，糖代谢减低；两侧肺门肿大淋巴结为新增病灶；双侧胸腔无积液；心脏不大。腹部PET/CT图像示肝左叶见糖代谢异常增高的低密度影，大小约19.3MM×14.5MM，最大SUV值6.95，较前片为新增病灶；腹主动脉旁见多发糖代谢异常增高的肿大淋巴结，最大者大小为18.5MM×13.2MM，最大SUV值为10.09，较前片增大、增多，糖代谢略减低；肝内外胆管无扩张；双肾多发无明显糖代谢的低密度灶，边界清楚，最大者大小为26.8MM×23.5MM，位于左肾，较前相仿；胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；胆囊、胰、脾、双肾上腺无殊；腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈，壁光滑无增厚；双侧精囊腺形态可；双侧膀胱精囊三角对称；前列腺不大，密度均；盆腔内未见占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像见右侧肱骨上段、双侧侧髂骨、右侧第8后肋、脊柱多处见糖代谢异常增高，骨质密度不规则增高，最大SUV值分别为10.22，位于左侧髂骨，较前片病灶增多，糖代谢程度增高；余处未见明显糖代谢异常增高及骨质破坏；部分脊柱椎体边缘及椎小关节骨质增生。</t>
+    <t>左下肺MT综合治疗后,与2012-4-12本院PET/CT图像相比,两肺多发转移,肝左叶转移为新增病灶;全身骨骼多处转移,部分为新增病灶;左锁骨区淋巴结转移较前增多,糖代谢程度增高;右锁骨区淋巴结转移灶大小相仿,糖代谢程度较前略减低;内乳、纵隔转移性淋巴结较前缩小,糖代谢程度减低;后腹膜淋巴结转移,病灶较前增多,糖代谢略减低;余同前。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像,并与2012.04.12本院PET/CT图像比较。脑部PET/CT图像示脑内多发无糖代谢增高的小低密度灶,较前片相仿;余脑皮质及双侧基底节、丘脑、小脑放射性分布对称,未见明显糖代谢异常;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部及鼻咽部PET/CT图像示眶内及鼻咽部结构及其糖代谢未见明显异常。颈部PET/CT图像示双侧锁骨区见多发糖代谢异常增高的肿大淋巴结,左侧最大者大小为17.5MM×10.5MM,最大SUV值5.06,右侧最大者大小为19.5MM×14.8MM,最大SUV值3.35;较前片左侧锁骨区肿大淋巴结增大,糖代谢程度增高,右侧锁骨区肿大淋巴结大小较前相仿,糖代谢略减低;余双侧颈部、甲状腺等均未见明显糖代谢异常增高灶及占位性病变。胸部PET/CT图像示左下肺MT术后,右肺上叶尖段和前段见糖代谢异常增高的不规则结节影,边缘模糊,最大SUV值6.49,延迟1.5小时后最大SUV值7.81,滞留指数为20.3%;两肺另见多发早期及延迟1.5小时相均无明显糖代谢异常增高的微小结节影,最大者直径约7.5MM,纵隔、右侧内乳、双侧肺门见糖代谢增高淋巴结,最大者约14.8MM×13.5MM,最大SUV值4.71,位于右侧肺门;纵隔及右侧内乳多发糖代谢异常增高的肿大淋巴结较前缩小,糖代谢减低;两侧肺门肿大淋巴结为新增病灶;双侧胸腔无积液;心脏不大。腹部PET/CT图像示肝左叶见糖代谢异常增高的低密度影,大小约19.3MM×14.5MM,最大SUV值6.95,较前片为新增病灶;腹主动脉旁见多发糖代谢异常增高的肿大淋巴结,最大者大小为18.5MM×13.2MM,最大SUV值为10.09,较前片增大、增多,糖代谢略减低;肝内外胆管无扩张;双肾多发无明显糖代谢的低密度灶,边界清楚,最大者大小为26.8MM×23.5MM,位于左肾,较前相仿;胃壁均匀性轻度生理性糖代谢增强;肠道呈线型生理性糖代谢增强;胆囊、胰、脾、双肾上腺无殊;腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈,壁光滑无增厚;双侧精囊腺形态可;双侧膀胱精囊三角对称;前列腺不大,密度均;盆腔内未见占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET/CT图像见右侧肱骨上段、双侧侧髂骨、右侧第8后肋、脊柱多处见糖代谢异常增高,骨质密度不规则增高,最大SUV值分别为10.22,位于左侧髂骨,较前片病灶增多,糖代谢程度增高;余处未见明显糖代谢异常增高及骨质破坏;部分脊柱椎体边缘及椎小关节骨质增生。</t>
   </si>
   <si>
     <t>两肺,肝左叶,骨,左锁骨区淋巴结,右锁骨区淋巴结,内乳,纵隔转移性淋巴结,后腹膜淋巴结</t>
   </si>
   <si>
-    <t>1.乙状结肠癌，由肠系膜下动脉供血；2.肝内小囊肿，静脉期肝内轻度强化灶，转移待除外，请结合临床，必要时详查；3.平腰2/3椎间隙水平腹主动脉局限性增宽，腹主动脉瘤可能性大；4.双肾囊肿。乙状结肠肠壁增厚，管腔狭窄，周围脂肪间隙尚清，增强后病变明显强化，病变周围可见增多迂曲动脉，由肠系膜下动脉供血，近端结肠管腔未见扩张。余腹腔肠管未见异常强化。肝脏大小形态正常，肝脏左内叶可见小圆形低密度影，边界清，增强各期未见强化。增强后静脉肝脏实质可见多个轻度强化灶，直径约0.5CM。余脾脏、胰腺形态大小正常，内未见异常强化影。两肾实质内可见小圆形低密度影，边界清，增强各期未见强化。胆囊不大，其内未见异常密度影。膀胱充盈良好，其内未见异常密度影，双侧输尿管不扩张。腹膜后未见异常增大的淋巴结影。全腹平扫、增强及三维重建示腹主动脉及双髂总动脉多发混合斑块，走形迂曲，平腰2/3椎间隙腹主动脉增宽，直径约2.9CM。肠系膜上下动脉、腹腔干、双肾动脉形态走形未见异常。</t>
-  </si>
-  <si>
-    <t>1.结合临床，右肺癌侵及胸膜治疗后，较前2016-7-6略缩小；右侧锁骨上、右肺门及纵隔淋巴结转移治疗后，部分略缩小，部分变化不著；骨转移，较前成骨略增多；左肺小结节灶，考虑转移，变化不著。2.左肺门及膈上稍大淋巴结，变化不著。3.右肺类结节灶，变化不著；左肺含气囊肿；考虑左肺少许炎症、纤维灶，变化不著。4.甲状腺低密度灶。5.考虑肝囊肿、右肾囊肿。6.肝内异常强化灶，变化不著。7.主胰管及部分肝内胆管轻度扩张。右肺中叶外侧段胸膜下示不规则软组织密度影，约1.7CM×2.1CM，增强呈不均质较明显强化，边缘分叶、毛糙，与邻近胸膜分界不清，以叶间胸膜为著，局部胸膜略内陷。右肺胸膜下示小类结节灶。左肺下叶示小结节灶，增强可见强化，边界较清。另左肺上叶示小泡状低密度区，边界较清，舌段示片状影。右侧锁骨上、双肺门、纵隔及膈上前组示多发增大淋巴结，大者短径约0.7CM。甲状腺右叶内示斑片状低密度灶。肝及右肾示囊性密度灶。另动脉期肝内示类结节状明显强化灶，其余各期显示不清。主胰管及部分肝内胆管略扩张。双侧肾上腺饱满。腹腔腹膜后未见肿大淋巴结。部分椎骨示骨质破坏。</t>
+    <t>1.乙状结肠癌,由肠系膜下动脉供血;2.肝内小囊肿,静脉期肝内轻度强化灶,转移待除外,请结合临床,必要时详查;3.平腰2/3椎间隙水平腹主动脉局限性增宽,腹主动脉瘤可能性大;4.双肾囊肿。乙状结肠肠壁增厚,管腔狭窄,周围脂肪间隙尚清,增强后病变明显强化,病变周围可见增多迂曲动脉,由肠系膜下动脉供血,近端结肠管腔未见扩张。余腹腔肠管未见异常强化。肝脏大小形态正常,肝脏左内叶可见小圆形低密度影,边界清,增强各期未见强化。增强后静脉肝脏实质可见多个轻度强化灶,直径约0.5CM。余脾脏、胰腺形态大小正常,内未见异常强化影。两肾实质内可见小圆形低密度影,边界清,增强各期未见强化。胆囊不大,其内未见异常密度影。膀胱充盈良好,其内未见异常密度影,双侧输尿管不扩张。腹膜后未见异常增大的淋巴结影。全腹平扫、增强及三维重建示腹主动脉及双髂总动脉多发混合斑块,走形迂曲,平腰2/3椎间隙腹主动脉增宽,直径约2.9CM。肠系膜上下动脉、腹腔干、双肾动脉形态走形未见异常。</t>
+  </si>
+  <si>
+    <t>1.结合临床,右肺癌侵及胸膜治疗后,较前2016-7-6略缩小;右侧锁骨上、右肺门及纵隔淋巴结转移治疗后,部分略缩小,部分变化不著;骨转移,较前成骨略增多;左肺小结节灶,考虑转移,变化不著。2.左肺门及膈上稍大淋巴结,变化不著。3.右肺类结节灶,变化不著;左肺含气囊肿;考虑左肺少许炎症、纤维灶,变化不著。4.甲状腺低密度灶。5.考虑肝囊肿、右肾囊肿。6.肝内异常强化灶,变化不著。7.主胰管及部分肝内胆管轻度扩张。右肺中叶外侧段胸膜下示不规则软组织密度影,约1.7CM×2.1CM,增强呈不均质较明显强化,边缘分叶、毛糙,与邻近胸膜分界不清,以叶间胸膜为著,局部胸膜略内陷。右肺胸膜下示小类结节灶。左肺下叶示小结节灶,增强可见强化,边界较清。另左肺上叶示小泡状低密度区,边界较清,舌段示片状影。右侧锁骨上、双肺门、纵隔及膈上前组示多发增大淋巴结,大者短径约0.7CM。甲状腺右叶内示斑片状低密度灶。肝及右肾示囊性密度灶。另动脉期肝内示类结节状明显强化灶,其余各期显示不清。主胰管及部分肝内胆管略扩张。双侧肾上腺饱满。腹腔腹膜后未见肿大淋巴结。部分椎骨示骨质破坏。</t>
   </si>
   <si>
     <t>1.7CM×2.1CM</t>
@@ -2936,13 +2936,13 @@
     <t>右侧锁骨上,右肺门及纵隔淋巴结,骨,左肺</t>
   </si>
   <si>
-    <t>乳腺癌术后复发综合治疗后复查：双侧乳腺缺失，双侧前胸壁局部未见明显肿瘤复发征。右肺尖斑片状影，考虑放射性炎症，大致同前。左肺上叶舌段少许炎症。右肺上叶、中叶胸膜下索条及斑片影，考虑纤维增殖灶，较前未见明显变化。主动脉旁、左侧锁骨上窝小淋巴结，较前无明显变化。肝S4小囊肿。肝内胆管结石。甲状腺内高密度灶，考虑良性病变，结节性甲状腺肿合并钙化?建议复查。右侧腮腺小结节，考虑良性病变可能性大。多发骨转移瘤，较前部分稍增大、部分较前致密。T10右旁软组织结节影，考虑转移瘤可能性大，较前未见明显变化。乳腺癌术后复发综合治疗后复查，与2016-11-19片对比：双侧乳腺缺失，双侧前胸壁皮肤无明显增厚，皮下脂肪间隙稍模糊。双肺纹理清晰，右肺尖可见斑片状密影，边界欠清，内可见充气支气管影，较前相仿；右肺上叶及中叶近胸膜处可见斑片状、索条状密影，边界欠清，较前未见明显变化。左肺上叶舌段见少许斑片模糊影。气管及支气管分支通畅。左侧锁骨上窝、主动脉旁见小淋巴结，大者短径为7MM，边界清晰，大致同前。双侧胸腔内未见积液。胸膜未见增厚粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝S4见一低密度灶，边界尚清，大小约5MM，增强扫描强化不明显。肝S4、S5包膜下见点状高密度灶，大小约7MM。胆囊大小正常，其内未见结石影；肝内胆管、胆总管未见扩张，其内未见结石影。肝门区正常。门静脉未见异常。脾、胰腺、双肾见及双肾上腺形态及密度未见明显异常。腹主动脉旁未见肿大淋巴结。甲状腺双叶见数个高密度灶，大者约8MM×6MM，边界清，未见强化。喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。右侧腮腺见一结节，直径约5MM，边界清楚，内见钙化。双侧颌下腺、左侧腮腺大小形态正常，密度均匀。双颈未见明显肿大淋巴结。所示颅骨、颈椎、左侧锁骨、双侧肱骨头、双侧肩胛骨、双侧部分肋骨、胸骨、多发胸椎、腰椎及附件见骨质破坏，较前部分稍增大、部分较前致密。T10椎体右旁见软组织结节，大小为12MM×20MM，边界清晰，密度尚均匀，增强扫描明显强化，较前相仿。</t>
+    <t>乳腺癌术后复发综合治疗后复查:双侧乳腺缺失,双侧前胸壁局部未见明显肿瘤复发征。右肺尖斑片状影,考虑放射性炎症,大致同前。左肺上叶舌段少许炎症。右肺上叶、中叶胸膜下索条及斑片影,考虑纤维增殖灶,较前未见明显变化。主动脉旁、左侧锁骨上窝小淋巴结,较前无明显变化。肝S4小囊肿。肝内胆管结石。甲状腺内高密度灶,考虑良性病变,结节性甲状腺肿合并钙化?建议复查。右侧腮腺小结节,考虑良性病变可能性大。多发骨转移瘤,较前部分稍增大、部分较前致密。T10右旁软组织结节影,考虑转移瘤可能性大,较前未见明显变化。乳腺癌术后复发综合治疗后复查,与2016-11-19片对比:双侧乳腺缺失,双侧前胸壁皮肤无明显增厚,皮下脂肪间隙稍模糊。双肺纹理清晰,右肺尖可见斑片状密影,边界欠清,内可见充气支气管影,较前相仿;右肺上叶及中叶近胸膜处可见斑片状、索条状密影,边界欠清,较前未见明显变化。左肺上叶舌段见少许斑片模糊影。气管及支气管分支通畅。左侧锁骨上窝、主动脉旁见小淋巴结,大者短径为7MM,边界清晰,大致同前。双侧胸腔内未见积液。胸膜未见增厚粘连。肝脏形态正常,各叶比例在正常范围以内,其外形轮廓光整,密度不均匀。肝S4见一低密度灶,边界尚清,大小约5MM,增强扫描强化不明显。肝S4、S5包膜下见点状高密度灶,大小约7MM。胆囊大小正常,其内未见结石影;肝内胆管、胆总管未见扩张,其内未见结石影。肝门区正常。门静脉未见异常。脾、胰腺、双肾见及双肾上腺形态及密度未见明显异常。腹主动脉旁未见肿大淋巴结。甲状腺双叶见数个高密度灶,大者约8MM×6MM,边界清,未见强化。喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。右侧腮腺见一结节,直径约5MM,边界清楚,内见钙化。双侧颌下腺、左侧腮腺大小形态正常,密度均匀。双颈未见明显肿大淋巴结。所示颅骨、颈椎、左侧锁骨、双侧肱骨头、双侧肩胛骨、双侧部分肋骨、胸骨、多发胸椎、腰椎及附件见骨质破坏,较前部分稍增大、部分较前致密。T10椎体右旁见软组织结节,大小为12MM×20MM,边界清晰,密度尚均匀,增强扫描明显强化,较前相仿。</t>
   </si>
   <si>
     <t>骨,T10右旁</t>
   </si>
   <si>
-    <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET/CT图像示鼻咽右侧壁局部糖代谢增高，最大SUV值约为3.8，未见明显占位征象，考虑为生理性或炎性摄取；双侧额窦、筛窦、蝶窦和上颌窦未见明显异常占位及糖代谢异常增高灶。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，右叶见钙化灶，左叶下极见大小约为7.9MM×4.8MM低密度结节。胸部PET/CT图像示右肺上叶近肺门糖代谢异常增高的不规则占位，最大SUV值约为11.4，较大者截面大小约为26.8MM×20.9MM，与右肺门分界不清；病灶周边见糖代谢异常增高的结节，最大SUV值约为9.2，较大者大小约为13.7MM×11.1MM；纵隔内主肺动脉窗多发糖代谢异常增高的肿大淋巴结，最大SUV值约为11.5，较大者大小约为24.0MM×16.6MM；双肺上叶透亮度增高；右肺上叶尖段见糖代谢轻度增高的结节样斑片影，最大SUV值约为1.2，内见钙化灶；右肺上叶局部气管受压变窄；双侧胸膜无增厚；双侧胸腔无积液；心脏无明显增大；双侧腋窝无明显糖代谢异常增高的肿大淋巴结。腹部PET/CT图像见胃窦充盈欠佳，局部糖代谢增高，最大SUV值约为6.3，未见明显占位；肠道呈线型生理性糖代谢增强；肝脏表面光整，各叶比例匀称，实质内多发无明显糖代谢异常增高的囊性低密度灶，较大者位于左外叶，大小约为32.6MM×36.4MM；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位及糖代谢异常增高灶；胆囊、胰、双肾、肾上腺无殊；腹膜后无明显糖代谢异常增高的肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈，壁光滑无增厚；双侧精囊腺形态可；双侧膀胱精囊三角对称；前列腺增大，内见钙化灶；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质增生，考虑为退行性变。结合病史，符合右肺上叶中央型MT伴纵隔及右肺门淋巴结转移表现，请结合临床；双肺上叶气肿；右肺上叶慢性炎症及陈旧灶；右肺上叶局部气管受压变窄；胃窦充盈欠佳，局部糖代谢增高，考虑为生理性或炎性摄取可能，必要时胃镜检查；肝囊肿；前列腺增生伴钙化；甲状腺右叶钙化灶，左叶低密度结节，请结合超声检查。</t>
+    <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼内肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET/CT图像示鼻咽右侧壁局部糖代谢增高,最大SUV值约为3.8,未见明显占位征象,考虑为生理性或炎性摄取;双侧额窦、筛窦、蝶窦和上颌窦未见明显异常占位及糖代谢异常增高灶。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结;口咽、喉咽部无占位;甲状腺无肿大,右叶见钙化灶,左叶下极见大小约为7.9MM×4.8MM低密度结节。胸部PET/CT图像示右肺上叶近肺门糖代谢异常增高的不规则占位,最大SUV值约为11.4,较大者截面大小约为26.8MM×20.9MM,与右肺门分界不清;病灶周边见糖代谢异常增高的结节,最大SUV值约为9.2,较大者大小约为13.7MM×11.1MM;纵隔内主肺动脉窗多发糖代谢异常增高的肿大淋巴结,最大SUV值约为11.5,较大者大小约为24.0MM×16.6MM;双肺上叶透亮度增高;右肺上叶尖段见糖代谢轻度增高的结节样斑片影,最大SUV值约为1.2,内见钙化灶;右肺上叶局部气管受压变窄;双侧胸膜无增厚;双侧胸腔无积液;心脏无明显增大;双侧腋窝无明显糖代谢异常增高的肿大淋巴结。腹部PET/CT图像见胃窦充盈欠佳,局部糖代谢增高,最大SUV值约为6.3,未见明显占位;肠道呈线型生理性糖代谢增强;肝脏表面光整,各叶比例匀称,实质内多发无明显糖代谢异常增高的囊性低密度灶,较大者位于左外叶,大小约为32.6MM×36.4MM;肝内外胆管无扩张;脾脏不大,密度均,未见明显占位及糖代谢异常增高灶;胆囊、胰、双肾、肾上腺无殊;腹膜后无明显糖代谢异常增高的肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈,壁光滑无增厚;双侧精囊腺形态可;双侧膀胱精囊三角对称;前列腺增大,内见钙化灶;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质增生,考虑为退行性变。结合病史,符合右肺上叶中央型MT伴纵隔及右肺门淋巴结转移表现,请结合临床;双肺上叶气肿;右肺上叶慢性炎症及陈旧灶;右肺上叶局部气管受压变窄;胃窦充盈欠佳,局部糖代谢增高,考虑为生理性或炎性摄取可能,必要时胃镜检查;肝囊肿;前列腺增生伴钙化;甲状腺右叶钙化灶,左叶低密度结节,请结合超声检查。</t>
   </si>
   <si>
     <t>26.8MM×20.9MM</t>
@@ -2951,7 +2951,7 @@
     <t>纵隔及右肺门淋巴结</t>
   </si>
   <si>
-    <t>左肺门、纵隔、左锁上示小淋巴结，大者短径约0.6CM。双颈部未见明显增大淋巴结。左肺下叶胸椎旁示类结节灶，边缘模糊，有强化，短径约0.4CM。肝胰脾右肾上腺双肾形态、密度未见明显异常。胆囊壁厚，有强化。左肾上腺饱满局部呈类结节状，有强化。左肾囊肿。T12椎体局部骨质密度呈结节状增高。1.结合临床，左肺癌并左肺门淋巴结转移治疗后，纵隔、左锁上淋巴结肿大；左肾上腺类结节灶，不除外转移；T12椎体骨质异常，考虑骨转移2.胆囊炎，左肾囊肿3.颈部未见明显异常</t>
+    <t>左肺门、纵隔、左锁上示小淋巴结,大者短径约0.6CM。双颈部未见明显增大淋巴结。左肺下叶胸椎旁示类结节灶,边缘模糊,有强化,短径约0.4CM。肝胰脾右肾上腺双肾形态、密度未见明显异常。胆囊壁厚,有强化。左肾上腺饱满局部呈类结节状,有强化。左肾囊肿。T12椎体局部骨质密度呈结节状增高。1.结合临床,左肺癌并左肺门淋巴结转移治疗后,纵隔、左锁上淋巴结肿大;左肾上腺类结节灶,不除外转移;T12椎体骨质异常,考虑骨转移2.胆囊炎,左肾囊肿3.颈部未见明显异常</t>
   </si>
   <si>
     <t>0.4CM</t>
@@ -2960,7 +2960,7 @@
     <t>左肺门淋巴结,左肾上腺,T12椎体</t>
   </si>
   <si>
-    <t>双侧乳腺、卵巢MT综合治疗后：考虑为卵巢MT腹膜、盆腔系膜多发转移；腹盆腔少量积液；两肺少许慢性炎症；主动脉瓣根部钙化；双侧胸腔、心包少量积液；脾内钙化灶。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。右侧上颌窦内粘膜增厚影，考虑为慢性炎症。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示双乳MT术后，右侧腋窝片状糖代谢略增高，最大SUV值为2.4，考虑为术后炎性改变；双肺纹理清晰，见少许条片影；各级支气管腔通畅；纵隔无明显肿大淋巴结，双肺门影不大；双侧胸膜无增厚；双侧胸腔少量积液；主动脉根部见钙化影；心包少量积液。腹部PET/CT图像示肝包膜及腹膜多发增厚，伴糖代谢异常增高，最大SUV值为5.5；肝包膜下少量积液；余肝实质内未见明确占位及糖代谢异常增高灶；胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；胆囊、胰、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高灶及占位；脾脏不大，内见点状钙化灶，未见明显糖代谢异常增高灶。盆部PET/CT图像示子宫及双侧附件切除术后；盆腔腹膜及系膜多发增厚，伴糖代谢异常增高，最大SUV值为6.5；膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；双侧腹股沟无肿大淋巴结；盆腔少量积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质增生，提示为退行性变。</t>
+    <t>双侧乳腺、卵巢MT综合治疗后:考虑为卵巢MT腹膜、盆腔系膜多发转移;腹盆腔少量积液;两肺少许慢性炎症;主动脉瓣根部钙化;双侧胸腔、心包少量积液;脾内钙化灶。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼内肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。右侧上颌窦内粘膜增厚影,考虑为慢性炎症。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结;口咽、喉咽部无占位;甲状腺无肿大,未见明显占位。胸部PET/CT图像示双乳MT术后,右侧腋窝片状糖代谢略增高,最大SUV值为2.4,考虑为术后炎性改变;双肺纹理清晰,见少许条片影;各级支气管腔通畅;纵隔无明显肿大淋巴结,双肺门影不大;双侧胸膜无增厚;双侧胸腔少量积液;主动脉根部见钙化影;心包少量积液。腹部PET/CT图像示肝包膜及腹膜多发增厚,伴糖代谢异常增高,最大SUV值为5.5;肝包膜下少量积液;余肝实质内未见明确占位及糖代谢异常增高灶;胃壁均匀性轻度糖代谢生理性增强;肠道呈线型生理性糖代谢增强;胆囊、胰、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高灶及占位;脾脏不大,内见点状钙化灶,未见明显糖代谢异常增高灶。盆部PET/CT图像示子宫及双侧附件切除术后;盆腔腹膜及系膜多发增厚,伴糖代谢异常增高,最大SUV值为6.5;膀胱内大量显像剂生理性积聚;肠道呈线型生理性糖代谢增强;双侧腹股沟无肿大淋巴结;盆腔少量积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质增生,提示为退行性变。</t>
   </si>
   <si>
     <t>双侧乳腺,卵巢</t>
@@ -2969,7 +2969,7 @@
     <t>腹膜,盆腔系膜</t>
   </si>
   <si>
-    <t>左乳外下象限MT伴左侧腋窝淋巴结转移；左侧内乳淋巴结转移不除外；右肺中叶及左肺下叶小结节，请随访；甲状腺密度欠均匀，请结合超声检查。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽部PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。双侧额窦、筛窦、双侧蝶窦和双侧上颌窦未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺密度欠均匀。胸部PET/CT图像示左侧腋窝多发糖代谢异常增高的肿大淋巴结，糖代谢较高且较大者最大SUV值约为12.8，大小约为19.7MM×18.1MM；左乳外下象限见糖代谢异常增高的结节，最大SUV值约为6.7，大小约为14.4MM×10.6MM；左侧内乳(约第2肋水平)见糖代谢轻度增高的淋巴结，最大SUV值约为1.4，大小约为6.3MM×2.6MM；两肺纹理清晰，右肺中叶及左肺下叶见直径均小于5.0MM的小结节，无明显糖代谢异常增高；各级支气管腔通畅；纵隔及两肺门无明显肿大淋巴结及糖代谢异常增高灶；双侧胸腔无积液；心脏无明显增大。腹部PET图像示胃部充盈可，胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝脏、胆囊、胰腺、脾脏、双肾上腺、双肾、双输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内未见明显占位；肝内外胆管无扩张；脾脏不大，密度均匀，未见明显占位；胆囊、胰腺、双肾、双肾上腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈可，壁光滑无增厚；子宫及双侧附件区未见明显占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT平扫骨窗示部分颈、胸、腰、骶椎体及椎小关节骨质增生，考虑为退行性变。</t>
+    <t>左乳外下象限MT伴左侧腋窝淋巴结转移;左侧内乳淋巴结转移不除外;右肺中叶及左肺下叶小结节,请随访;甲状腺密度欠均匀,请结合超声检查。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼内肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽部PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。双侧额窦、筛窦、双侧蝶窦和双侧上颌窦未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结;口咽、喉咽部无占位;甲状腺密度欠均匀。胸部PET/CT图像示左侧腋窝多发糖代谢异常增高的肿大淋巴结,糖代谢较高且较大者最大SUV值约为12.8,大小约为19.7MM×18.1MM;左乳外下象限见糖代谢异常增高的结节,最大SUV值约为6.7,大小约为14.4MM×10.6MM;左侧内乳(约第2肋水平)见糖代谢轻度增高的淋巴结,最大SUV值约为1.4,大小约为6.3MM×2.6MM;两肺纹理清晰,右肺中叶及左肺下叶见直径均小于5.0MM的小结节,无明显糖代谢异常增高;各级支气管腔通畅;纵隔及两肺门无明显肿大淋巴结及糖代谢异常增高灶;双侧胸腔无积液;心脏无明显增大。腹部PET图像示胃部充盈可,胃壁均匀性轻度糖代谢生理性增强;肠道呈线型生理性糖代谢增强;肝脏、胆囊、胰腺、脾脏、双肾上腺、双肾、双输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整,各叶比例匀称,实质内未见明显占位;肝内外胆管无扩张;脾脏不大,密度均匀,未见明显占位;胆囊、胰腺、双肾、双肾上腺无殊;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈可,壁光滑无增厚;子宫及双侧附件区未见明显占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT平扫骨窗示部分颈、胸、腰、骶椎体及椎小关节骨质增生,考虑为退行性变。</t>
   </si>
   <si>
     <t>14.4MM×10.6MM</t>
@@ -2978,19 +2978,19 @@
     <t>左侧腋窝淋巴结,左侧内乳淋巴结</t>
   </si>
   <si>
-    <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，两侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。双侧上颌窦粘膜增厚，考虑为慢性炎症；其余副鼻窦未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结，左侧锁骨区见一枚大小约为9.1MM×6.8MM的淋巴结，考虑为慢性非特异性炎症；口咽、喉咽部无占位；甲状腺无肿大，双叶密度欠均，左叶中部见一枚大小约为10.1MM×5.4MM的低密度灶。胸部PET/CT图像示左侧乳腺外上象限见一枚糖代谢异常增高的软组织影，病灶自左乳腺体延伸至皮下，呈不规则分叶状，边缘见细短毛刺，最大SUV值约为15.6；左侧腋下见数枚稍大淋巴结，较大者大小约为12.2MM×7.7MM，其中一枚(约主动脉弓水平)见糖代谢轻度增高，最大SUV值约为2.4；右肺中叶内侧段及左肺上叶下舌段见不伴糖代谢异常增高的纤维条索灶，各级支气管腔通畅；双肺门、纵隔、胸壁、右侧乳腺、右侧腋窝等均未见明显糖代谢异常增高灶或占位。双侧胸膜无增厚；双侧胸腔无积液；心脏无明显增大。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，肝左叶见数枚低密度影，较大者位于左外叶，直径约为9.8MM，其余肝脏实质内未见明显占位；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；胆囊、胰、双肾、肾上腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET/CT图像示右下盆腔小肠局灶性糖代谢增高，最大SUV值约为6.2，延迟1.5小时后最大SUV值约为5.1，局部未见明显肠壁增厚；左侧附件区见一大小约为31.4MM×29.7MM的囊性低密度影，边缘见糖代谢轻度增高，最大SUV值约为3.0；子宫形态不规则增大，右缘见一大小约为58.2MM×43.2MM、糖代谢轻度增高的等密度团块影，最大SUV值约为2.8；膀胱内显像剂生理性积聚；余肠道呈线型生理性糖代谢增强；盆腔及双侧腹股沟处未见明显糖代谢异常增强或占位；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见异常。考虑为左乳外上象限MT伴左侧腋下淋巴结转移可能，请结合临床；甲状腺左叶无糖代谢异常增高的低密度灶，考虑为良性病变可能，建议结合超声检查；两肺慢性炎症；肝左叶囊肿；盆腔小肠局灶性糖代谢增高，考虑为生理性摄取或良性病变可能；子宫肌瘤，左侧卵巢良性病变(囊肿可能)，请结合妇科超声检查。</t>
+    <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑糖代谢分布对称,未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整,球内未见异常密度灶,眼内肌对称未见增粗及异常变细,视神经未见异常密度灶,眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶上裂、眶下裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑,两侧壁软组织对称,咽隐窝及咽鼓管开口无变窄,咽旁间隙清晰。双侧上颌窦粘膜增厚,考虑为慢性炎症;其余副鼻窦未见明显异常。颈部PET图像示双侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示双侧颈部无明显肿大淋巴结,左侧锁骨区见一枚大小约为9.1MM×6.8MM的淋巴结,考虑为慢性非特异性炎症;口咽、喉咽部无占位;甲状腺无肿大,双叶密度欠均,左叶中部见一枚大小约为10.1MM×5.4MM的低密度灶。胸部PET/CT图像示左侧乳腺外上象限见一枚糖代谢异常增高的软组织影,病灶自左乳腺体延伸至皮下,呈不规则分叶状,边缘见细短毛刺,最大SUV值约为15.6;左侧腋下见数枚稍大淋巴结,较大者大小约为12.2MM×7.7MM,其中一枚(约主动脉弓水平)见糖代谢轻度增高,最大SUV值约为2.4;右肺中叶内侧段及左肺上叶下舌段见不伴糖代谢异常增高的纤维条索灶,各级支气管腔通畅;双肺门、纵隔、胸壁、右侧乳腺、右侧腋窝等均未见明显糖代谢异常增高灶或占位。双侧胸膜无增厚;双侧胸腔无积液;心脏无明显增大。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强;肠道呈线型生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整,各叶比例匀称,肝左叶见数枚低密度影,较大者位于左外叶,直径约为9.8MM,其余肝脏实质内未见明显占位;肝内外胆管无扩张;脾脏不大,密度均,未见明显占位;胆囊、胰、双肾、肾上腺无殊;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET/CT图像示右下盆腔小肠局灶性糖代谢增高,最大SUV值约为6.2,延迟1.5小时后最大SUV值约为5.1,局部未见明显肠壁增厚;左侧附件区见一大小约为31.4MM×29.7MM的囊性低密度影,边缘见糖代谢轻度增高,最大SUV值约为3.0;子宫形态不规则增大,右缘见一大小约为58.2MM×43.2MM、糖代谢轻度增高的等密度团块影,最大SUV值约为2.8;膀胱内显像剂生理性积聚;余肠道呈线型生理性糖代谢增强;盆腔及双侧腹股沟处未见明显糖代谢异常增强或占位;盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见异常。考虑为左乳外上象限MT伴左侧腋下淋巴结转移可能,请结合临床;甲状腺左叶无糖代谢异常增高的低密度灶,考虑为良性病变可能,建议结合超声检查;两肺慢性炎症;肝左叶囊肿;盆腔小肠局灶性糖代谢增高,考虑为生理性摄取或良性病变可能;子宫肌瘤,左侧卵巢良性病变(囊肿可能),请结合妇科超声检查。</t>
   </si>
   <si>
     <t>左侧腋下淋巴结</t>
   </si>
   <si>
-    <t>禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET/CT图像示2012-4-10本院MRI图像示脑内多发异常强化灶处未见明显糖代谢异常，脑内另见多发小低密度灶；余脑皮质及双侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET/CT图像示眶内结构及其糖代谢未见明显异常。鼻咽部、咽旁间隙、副鼻窦结构及其糖代谢均未见明显异常。颈部PET/CT图像示双侧锁骨区见多发糖代谢异常增高的肿大淋巴结，最大者大小为19.1MM×15.8MM，最大SUV值为11.27；余双侧颈部、甲状腺等均未见明显糖代谢异常增高灶及占位性病变。双侧锁骨区糖代谢异常增高的肿大淋巴结较前增多、增大，糖代谢程度增高。胸部PET/CT图像示左下肺MT术后，纵隔及右侧内乳多发糖代谢异常增高的肿大淋巴结，最大者大小为14.7MM×11.2MM，最大SUV值为11.33；余处未见明显糖代谢异常增高灶及占位性病变；双侧胸腔无积液；心脏不大。与2010-12-6本院PET/CT图像相比，右侧内乳新增糖代谢异常增高的肿大淋巴结，纵隔淋巴结较前缩小，糖代谢程度与前相仿。腹部PET/CT图像见腹主动脉旁见多发糖代谢异常增高的肿大淋巴结，最大者大小为16.4MM×12.2MM，最大SUV值为13.54；肝脏表面光整，各叶比例匀称，肝实质密度普遍减低，低于脾脏，实质内未见异常占位；肝内外胆管无扩张；双肾多发无明显糖代谢的低密度灶，边界清楚，最大者大小为26.3MM×23.0MM；胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；胆囊、胰、脾、双肾上腺、肾、输尿管等处未见明显糖代谢异常增高灶及占位性病变；腹腔无积液。与2010-12-6本院PET/CT图像相比，腹主动脉旁新增多发糖代谢异常增高的肿大淋巴结。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈，壁光滑无增厚；双侧精囊腺形态可；双侧膀胱精囊三角对称；前列腺不大，密度均；盆腔内未见占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像见右侧肱骨上段及右侧髂骨局部见糖代谢异常增高的高密度灶，最大SUV值分别为2.78、3.64；余处未见异常糖代谢增强灶及骨质破坏吸收征象。与2010-12-6本院PET/CT图像相比，右肱骨及髂骨新增糖代谢异常增高灶。左下肺MT综合治疗后，与2010-12-6本院PET/CT图像相比，左锁骨区、内乳、后腹膜新增多发淋巴结转移，右肱骨及髂骨新增转移灶；右锁骨区转移性淋巴结较前增多、增大，糖代谢程度增高，纵隔转移性淋巴结较前缩小，糖代谢程度相仿；本院2012-4-10增强MRI所示脑内多发强化灶未见明显糖代谢异常，请结合临床；脑内多发腔隙性梗塞灶；脂肪肝；双肾无明显糖代谢的低密度灶，考虑为良性病变。</t>
+    <t>禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像。脑部PET/CT图像示2012-4-10本院MRI图像示脑内多发异常强化灶处未见明显糖代谢异常,脑内另见多发小低密度灶;余脑皮质及双侧基底节、丘脑、小脑放射性分布对称,未见明显糖代谢异常;各脑室、脑池无扩大和受推移;脑沟﹑脑裂无明显增宽;中线结构居中。眼眶部PET/CT图像示眶内结构及其糖代谢未见明显异常。鼻咽部、咽旁间隙、副鼻窦结构及其糖代谢均未见明显异常。颈部PET/CT图像示双侧锁骨区见多发糖代谢异常增高的肿大淋巴结,最大者大小为19.1MM×15.8MM,最大SUV值为11.27;余双侧颈部、甲状腺等均未见明显糖代谢异常增高灶及占位性病变。双侧锁骨区糖代谢异常增高的肿大淋巴结较前增多、增大,糖代谢程度增高。胸部PET/CT图像示左下肺MT术后,纵隔及右侧内乳多发糖代谢异常增高的肿大淋巴结,最大者大小为14.7MM×11.2MM,最大SUV值为11.33;余处未见明显糖代谢异常增高灶及占位性病变;双侧胸腔无积液;心脏不大。与2010-12-6本院PET/CT图像相比,右侧内乳新增糖代谢异常增高的肿大淋巴结,纵隔淋巴结较前缩小,糖代谢程度与前相仿。腹部PET/CT图像见腹主动脉旁见多发糖代谢异常增高的肿大淋巴结,最大者大小为16.4MM×12.2MM,最大SUV值为13.54;肝脏表面光整,各叶比例匀称,肝实质密度普遍减低,低于脾脏,实质内未见异常占位;肝内外胆管无扩张;双肾多发无明显糖代谢的低密度灶,边界清楚,最大者大小为26.3MM×23.0MM;胃壁均匀性轻度生理性糖代谢增强;肠道呈线型生理性糖代谢增强;胆囊、胰、脾、双肾上腺、肾、输尿管等处未见明显糖代谢异常增高灶及占位性病变;腹腔无积液。与2010-12-6本院PET/CT图像相比,腹主动脉旁新增多发糖代谢异常增高的肿大淋巴结。盆部PET图像示膀胱内大量放射性生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈,壁光滑无增厚;双侧精囊腺形态可;双侧膀胱精囊三角对称;前列腺不大,密度均;盆腔内未见占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET/CT图像见右侧肱骨上段及右侧髂骨局部见糖代谢异常增高的高密度灶,最大SUV值分别为2.78、3.64;余处未见异常糖代谢增强灶及骨质破坏吸收征象。与2010-12-6本院PET/CT图像相比,右肱骨及髂骨新增糖代谢异常增高灶。左下肺MT综合治疗后,与2010-12-6本院PET/CT图像相比,左锁骨区、内乳、后腹膜新增多发淋巴结转移,右肱骨及髂骨新增转移灶;右锁骨区转移性淋巴结较前增多、增大,糖代谢程度增高,纵隔转移性淋巴结较前缩小,糖代谢程度相仿;本院2012-4-10增强MRI所示脑内多发强化灶未见明显糖代谢异常,请结合临床;脑内多发腔隙性梗塞灶;脂肪肝;双肾无明显糖代谢的低密度灶,考虑为良性病变。</t>
   </si>
   <si>
     <t>纵隔淋巴结,髂骨,右肱骨,左锁骨区,内乳,后腹膜新增多发淋巴结,右锁骨区转移性淋巴结</t>
   </si>
   <si>
-    <t>左乳癌术后，左侧乳腺缺失，左侧胸壁未见明显肿物影，右侧乳腺未见明显异常密度灶，双侧腋窝未见明显肿大淋巴结。双肺纹理增粗，左肺尖见片状及条索灶，部分呈网格样改变。双肺见弥漫分布结节灶，大小约2MM×2MM~16MM×19MM，最大者位于右肺下叶背段，边缘毛糙，见短毛刺，临近胸膜可见牵拉，增强后明显强化。右侧锁骨上、下气管旁、双肺门、隆突下见多个淋巴结，短径约4~7MM，较明显强化。双侧胸腔见少量积液。双侧胸膜无增厚、粘连。肝内见多个结节状及团块状病灶，部分相互融合，最大者位于肝S3/4，呈多结节相互融合状，大小约37MM×39MM，边缘可见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。双肾所见正常。双肾上腺所见正常。肝脾包膜、盆底腹膜、肠系膜、大网膜明显增厚，部分呈类结节状，大网膜增厚呈饼状，增强后不均匀强化。右侧前膈角、肝门区、胃左、腹腔干、腹主动脉旁见肿大淋巴结，最大者约18MM×21MM，增强后较明显强化。腹盆腔见大量积液。膀胱充盈良好，境界清楚。子宫大小、形态未见明显异常，子宫颈大小、形态未见异常。双侧髂血管旁、腹股沟未见肿大淋巴结。甲状腺双叶及峡部形态正常，密度均匀，未见占位性病变。喉咽腔形态正常，双侧真假声带未见增厚，前联合未见增厚，梨状窝对称。双侧颌下腺、腮腺大小形态正常，密度均匀。双颈IB、II区见数个淋巴结，短径约4~7MM，较明显强化。右侧肱骨、多个椎体见溶骨性骨质破坏，部分病灶周围见软组织肿块形成。左乳癌术后改变。左肺尖斑片及条索灶，考虑放射性纤维化可能性大。双肺弥漫分布结节灶，考虑转移瘤可能性大，右肺上叶最大病灶可见分叶及毛刺，原发癌待排。右侧锁骨上、双肺门、纵隔、右侧前膈角、肝门区、胃左、腹腔干、腹主动脉旁多个淋巴结，考虑转移可能性大。肝内多发结节状病灶，考虑转移瘤可能性大。肝脾包膜、盆底腹膜、肠系膜、大网膜明显增厚，考虑转移可能性大。双侧胸腔积液，腹盆腔积液。右侧肱骨、多个椎体骨质破坏，考虑转移。</t>
+    <t>左乳癌术后,左侧乳腺缺失,左侧胸壁未见明显肿物影,右侧乳腺未见明显异常密度灶,双侧腋窝未见明显肿大淋巴结。双肺纹理增粗,左肺尖见片状及条索灶,部分呈网格样改变。双肺见弥漫分布结节灶,大小约2MM×2MM~16MM×19MM,最大者位于右肺下叶背段,边缘毛糙,见短毛刺,临近胸膜可见牵拉,增强后明显强化。右侧锁骨上、下气管旁、双肺门、隆突下见多个淋巴结,短径约4~7MM,较明显强化。双侧胸腔见少量积液。双侧胸膜无增厚、粘连。肝内见多个结节状及团块状病灶,部分相互融合,最大者位于肝S3/4,呈多结节相互融合状,大小约37MM×39MM,边缘可见强化。肝内胆管正常,其内未见结石影,胆囊大小正常,其内未见结石影,胆总管未见扩张,其内未见结石影。门静脉所见正常。脾大小正常,密度均匀。胰腺大小、形态正常,密度均匀。双肾所见正常。双肾上腺所见正常。肝脾包膜、盆底腹膜、肠系膜、大网膜明显增厚,部分呈类结节状,大网膜增厚呈饼状,增强后不均匀强化。右侧前膈角、肝门区、胃左、腹腔干、腹主动脉旁见肿大淋巴结,最大者约18MM×21MM,增强后较明显强化。腹盆腔见大量积液。膀胱充盈良好,境界清楚。子宫大小、形态未见明显异常,子宫颈大小、形态未见异常。双侧髂血管旁、腹股沟未见肿大淋巴结。甲状腺双叶及峡部形态正常,密度均匀,未见占位性病变。喉咽腔形态正常,双侧真假声带未见增厚,前联合未见增厚,梨状窝对称。双侧颌下腺、腮腺大小形态正常,密度均匀。双颈IB、II区见数个淋巴结,短径约4~7MM,较明显强化。右侧肱骨、多个椎体见溶骨性骨质破坏,部分病灶周围见软组织肿块形成。左乳癌术后改变。左肺尖斑片及条索灶,考虑放射性纤维化可能性大。双肺弥漫分布结节灶,考虑转移瘤可能性大,右肺上叶最大病灶可见分叶及毛刺,原发癌待排。右侧锁骨上、双肺门、纵隔、右侧前膈角、肝门区、胃左、腹腔干、腹主动脉旁多个淋巴结,考虑转移可能性大。肝内多发结节状病灶,考虑转移瘤可能性大。肝脾包膜、盆底腹膜、肠系膜、大网膜明显增厚,考虑转移可能性大。双侧胸腔积液,腹盆腔积液。右侧肱骨、多个椎体骨质破坏,考虑转移。</t>
   </si>
   <si>
     <t>左乳,右肺上叶</t>
@@ -2999,13 +2999,13 @@
     <t>16MM×19MM</t>
   </si>
   <si>
-    <t>1.右肺下叶近肺门处团块影，考虑右肺下叶肺癌，并双肺、右胸膜多发转移；较前CT(2016-09-13)相仿；2.心包少量积液，较前相仿；3.甲状腺改变，请结合临床。右肺下叶可见不规则软组织密度影，与右肺门分界不清，边缘毛糙，分叶状，较大截面约2.25CM×2.35CM，右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影，部分边缘毛糙；纵隔内未见增大淋巴结影。心包内见少许液性密度影。甲状腺增大。</t>
+    <t>1.右肺下叶近肺门处团块影,考虑右肺下叶肺癌,并双肺、右胸膜多发转移;较前CT(2016-09-13)相仿;2.心包少量积液,较前相仿;3.甲状腺改变,请结合临床。右肺下叶可见不规则软组织密度影,与右肺门分界不清,边缘毛糙,分叶状,较大截面约2.25CM×2.35CM,右侧胸膜增厚、斜裂增厚、右肺中叶条片状高密度影。双肺可见大小不一结节影,部分边缘毛糙;纵隔内未见增大淋巴结影。心包内见少许液性密度影。甲状腺增大。</t>
   </si>
   <si>
     <t>2.25CM×2.35CM</t>
   </si>
   <si>
-    <t>右肺门肿块，考虑中央型肺癌，右肺动脉主干受累；伴纵膈及右肺门多发肿大淋巴结转移。右侧胸腔积液，心包少量积液。左侧肾上腺结节，转移不除外，追查。右肺门见不规则软组织肿块影，与纵隔肿大淋巴结及周围不张肺组织分界不清，融合灶较大层面约112MM×96MM(IM26)，边缘模糊；右肺动脉主干受累，右肺支气管闭塞，左主支气管壁受累。右肺中叶内侧段及右肺下叶见大片实变及模糊片絮影。左肺未见肺内结节及实变影。纵隔及右肺门多发肿大淋巴结，大部分轮廓显示不清。右侧胸腔积液，心包少许积液。扫及胸廓诸骨未见明确破坏征象。扫及左侧肾上腺见结节，约14MM×12MM(IM59)。</t>
+    <t>右肺门肿块,考虑中央型肺癌,右肺动脉主干受累;伴纵膈及右肺门多发肿大淋巴结转移。右侧胸腔积液,心包少量积液。左侧肾上腺结节,转移不除外,追查。右肺门见不规则软组织肿块影,与纵隔肿大淋巴结及周围不张肺组织分界不清,融合灶较大层面约112MM×96MM(IM26),边缘模糊;右肺动脉主干受累,右肺支气管闭塞,左主支气管壁受累。右肺中叶内侧段及右肺下叶见大片实变及模糊片絮影。左肺未见肺内结节及实变影。纵隔及右肺门多发肿大淋巴结,大部分轮廓显示不清。右侧胸腔积液,心包少许积液。扫及胸廓诸骨未见明确破坏征象。扫及左侧肾上腺见结节,约14MM×12MM(IM59)。</t>
   </si>
   <si>
     <t>112MM×96MM</t>
@@ -3014,7 +3014,7 @@
     <t>纵膈及右肺门多发肿大淋巴结,左侧肾上腺</t>
   </si>
   <si>
-    <t>左乳外象限距乳头26MM处见一类结节状软组织灶，呈较均匀稍高密度，其中未见钙化，边界不清，边缘毛糙，范围约16MM×16MM(矢状位)，增强扫描强化不明显，邻近脂肪间隙稍模糊，邻近皮肤增厚并轻度凹陷，左侧乳腺后间隙存在；余左侧乳腺内见数个小类结节灶，边界欠清，边缘毛糙，较大者直径约9MM。右侧乳腺未见明显异常。左侧腋窝见数个小淋巴结，密度均匀，边界较清楚，最大者直径约5MM。右侧腋窝、双侧内乳区未见明显肿大淋巴结。双肺见数个散在分布的小类结节灶，边界较清，直径约2~7MM不等，大者位于右肺下叶后基底段段。右肺中叶见少许条索灶，边界清。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚、粘连。心包未见积液。肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，未见明显异常密度灶，增强扫描未见异常强化影。肝内胆管未见扩张，胆囊不大，胆总管未见扩张，其内未见结石。肝门区未见异常。门静脉及肝静脉未见异常。脾、胰腺、双肾及双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。颈部结构清晰，各血管充盈良好。甲状腺未见异常。喉咽腔形态正常，双侧真假声带、前联合未见增厚。双侧颌下腺、所见双侧腮腺未见异常。颈部肌群、肌间隙未见异常。颈部双侧见数个小淋巴结，边界清，大者位于左颈V区，短径约7MM，孤立散在。各颈椎及胸1椎体、颈7左侧附件骨质密度不均匀，内见多发斑片状骨质密度增高、减低影，边界欠清，颈7椎体上缘骨皮质局部缺损，周围未见明显软组织肿块形成。左乳外象限距乳头26MM处类结节灶，结合临床，符合乳腺癌；另左侧乳腺内数个小类结节灶，考虑转移可能。左侧腋窝数个小淋巴结，性质待定，建议随诊复查。颈部双侧数个小淋巴结，建议随诊复查。双肺数个散在分布的小类结节灶，考虑转移瘤与增殖灶鉴别，建议复查。各颈椎胸1椎体颈7左侧附件骨质改变，考虑转移瘤，并颈7椎体病理性骨折可能。</t>
+    <t>左乳外象限距乳头26MM处见一类结节状软组织灶,呈较均匀稍高密度,其中未见钙化,边界不清,边缘毛糙,范围约16MM×16MM(矢状位),增强扫描强化不明显,邻近脂肪间隙稍模糊,邻近皮肤增厚并轻度凹陷,左侧乳腺后间隙存在;余左侧乳腺内见数个小类结节灶,边界欠清,边缘毛糙,较大者直径约9MM。右侧乳腺未见明显异常。左侧腋窝见数个小淋巴结,密度均匀,边界较清楚,最大者直径约5MM。右侧腋窝、双侧内乳区未见明显肿大淋巴结。双肺见数个散在分布的小类结节灶,边界较清,直径约2~7MM不等,大者位于右肺下叶后基底段段。右肺中叶见少许条索灶,边界清。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚、粘连。心包未见积液。肝脏形态、各叶比例在正常范围以内,其外形轮廓光整,未见明显异常密度灶,增强扫描未见异常强化影。肝内胆管未见扩张,胆囊不大,胆总管未见扩张,其内未见结石。肝门区未见异常。门静脉及肝静脉未见异常。脾、胰腺、双肾及双肾上腺未见异常。膈脚后、胃左、腹腔干、腹主动脉旁未见肿大淋巴结。颈部结构清晰,各血管充盈良好。甲状腺未见异常。喉咽腔形态正常,双侧真假声带、前联合未见增厚。双侧颌下腺、所见双侧腮腺未见异常。颈部肌群、肌间隙未见异常。颈部双侧见数个小淋巴结,边界清,大者位于左颈V区,短径约7MM,孤立散在。各颈椎及胸1椎体、颈7左侧附件骨质密度不均匀,内见多发斑片状骨质密度增高、减低影,边界欠清,颈7椎体上缘骨皮质局部缺损,周围未见明显软组织肿块形成。左乳外象限距乳头26MM处类结节灶,结合临床,符合乳腺癌;另左侧乳腺内数个小类结节灶,考虑转移可能。左侧腋窝数个小淋巴结,性质待定,建议随诊复查。颈部双侧数个小淋巴结,建议随诊复查。双肺数个散在分布的小类结节灶,考虑转移瘤与增殖灶鉴别,建议复查。各颈椎胸1椎体颈7左侧附件骨质改变,考虑转移瘤,并颈7椎体病理性骨折可能。</t>
   </si>
   <si>
     <t>16MM×16MM</t>
@@ -3023,13 +3023,13 @@
     <t>胸1椎体,颈7左侧附件,左侧乳腺,各颈椎</t>
   </si>
   <si>
-    <t>右侧乳腺癌术后改变，局部未见明确肿物。右侧内乳血管旁结节，考虑转移瘤可能。右侧内乳血管旁数个小淋巴结，性质待定，建议复查。左肺上叶舌段、右肺中叶内侧段少许纤维增殖灶。甲状腺左右叶病变，考虑良性病变。肝S7肝内胆管结石。右侧肩胛骨致密结节，考虑骨岛可能性大。右侧乳腺癌术后：右乳术后缺失，右侧胸壁未见明显软组织肿物。左侧乳腺未见明确病变。双侧腋窝未见肿大淋巴结。右侧内乳血管旁见一结节(SE10，IM76)，大小约14MM×8MM，增强扫描强化明显；右侧内乳血管旁另见数个小淋巴结，大者短径约4MM，增强扫描轻中度强化。左肺上叶舌段、右肺中叶内侧段见少许条索影，边界清；余肺内未见明显实质性病变。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚、粘连。扫描所见甲状腺右叶见一小低密度灶，直径约4MM，增强扫描强化不明显；甲状腺左叶见一小斑点状钙化灶。扫描所见肝S7见一结节状致密影。右侧肩胛骨见一结节状致密影；余扫描范围内未见明确骨质破坏。</t>
+    <t>右侧乳腺癌术后改变,局部未见明确肿物。右侧内乳血管旁结节,考虑转移瘤可能。右侧内乳血管旁数个小淋巴结,性质待定,建议复查。左肺上叶舌段、右肺中叶内侧段少许纤维增殖灶。甲状腺左右叶病变,考虑良性病变。肝S7肝内胆管结石。右侧肩胛骨致密结节,考虑骨岛可能性大。右侧乳腺癌术后:右乳术后缺失,右侧胸壁未见明显软组织肿物。左侧乳腺未见明确病变。双侧腋窝未见肿大淋巴结。右侧内乳血管旁见一结节(SE10,IM76),大小约14MM×8MM,增强扫描强化明显;右侧内乳血管旁另见数个小淋巴结,大者短径约4MM,增强扫描轻中度强化。左肺上叶舌段、右肺中叶内侧段见少许条索影,边界清;余肺内未见明显实质性病变。气管及支气管分支通畅。双肺门及纵隔未见明显肿大淋巴结。双侧胸腔未见积液。双侧胸膜无增厚、粘连。扫描所见甲状腺右叶见一小低密度灶,直径约4MM,增强扫描强化不明显;甲状腺左叶见一小斑点状钙化灶。扫描所见肝S7见一结节状致密影。右侧肩胛骨见一结节状致密影;余扫描范围内未见明确骨质破坏。</t>
   </si>
   <si>
     <t>右侧内乳血管旁</t>
   </si>
   <si>
-    <t>考虑为右肺上叶尖段及前段MT侵犯邻近胸膜伴右颈部、右锁骨区、右肺门及纵隔淋巴结转移；两肺多发转移可能；右侧腋窝淋巴结转移不除外；病情较2011-12-9外院PET/CT图像明显进展；两肺慢性炎症及陈旧灶；右侧胸腔少量积液；甲状腺密度欠均匀，请结合超声检查；膀胱憩室；脑内多发腔梗灶；老年脑。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像，与2011-12-9外院PET/CT图像比较。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑未见明显糖代谢异常。CT平扫示双侧侧脑室旁及基底节区见小点状低密度影，余脑实质内未见明显异常密度影；各脑室、脑池扩大；脑沟﹑脑裂稍增宽；中线结构居中。眼眶部、鼻咽PET/CT图像无殊。筛窦及双侧上颌窦粘膜增厚，考虑为慢性炎症，余副鼻窦无殊。颈部PET/CT图像示新增右侧颈后三角及锁骨区糖代谢异常增高的淋巴结，较大且糖代谢较高者大小约为15.0MM×9.3MM，最大SUV值约为4.1；口咽、喉咽部无占位；甲状腺无肿大，其内密度不均匀减低。胸部PET/CT图像示双肺纹理增多，右肺上叶尖段及前段见团块状糖代谢异常增高灶，大小分别约为46.2MM×32.5MM和35.3MM×26.7MM，最大SUV值分别约为6.1和4.8，较前增大、密度变实、糖代谢增高，病灶与邻近胸膜分界不清；两肺见多枚类圆形不伴糖代谢异常增高的结节，较大者位于右肺中叶，直径约为17.7MM，较前增多、增大；两肺另见条索状密度增高影；右肺中叶见钙化结节；右肺门及纵隔隆突下见糖代谢异常增高的肿大淋巴结，较大且糖代谢较高者位于隆突下，大小约为20.6MM×13.5MM，最大SUV值约为4.9；左肺门影不大；右侧胸膜略增厚，左侧胸膜无增厚；右侧胸腔少量积液，引流管留置中；左侧胸腔无积液；心脏无明显增大；右侧腋窝见糖代谢轻度增高的增大淋巴结，大小约为14.1MM×9.5MM，最大SUV值约为1.9；左侧腋窝无明显肿大淋巴结；双侧乳腺无殊。腹部PET图像示胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内未见明显占位；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；双侧肾内血管壁见钙化灶；胆囊、胰、双肾上腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈，左前、右后壁见小囊状向外突起；子宫和双附件区未见明显占位；盆腔和双侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质增生，考虑为退行性变；第12胸椎变扁，呈楔形变；左侧第9后肋见小圆形致密影，考虑为骨岛。</t>
+    <t>考虑为右肺上叶尖段及前段MT侵犯邻近胸膜伴右颈部、右锁骨区、右肺门及纵隔淋巴结转移;两肺多发转移可能;右侧腋窝淋巴结转移不除外;病情较2011-12-9外院PET/CT图像明显进展;两肺慢性炎症及陈旧灶;右侧胸腔少量积液;甲状腺密度欠均匀,请结合超声检查;膀胱憩室;脑内多发腔梗灶;老年脑。禁食6小时余,静脉注射18F-FDG后,休息约60分钟,行全身PET/CT断层显像,与2011-12-9外院PET/CT图像比较。脑部PET图像示脑皮质及双侧基底节、丘脑、小脑未见明显糖代谢异常。CT平扫示双侧侧脑室旁及基底节区见小点状低密度影,余脑实质内未见明显异常密度影;各脑室、脑池扩大;脑沟﹑脑裂稍增宽;中线结构居中。眼眶部、鼻咽PET/CT图像无殊。筛窦及双侧上颌窦粘膜增厚,考虑为慢性炎症,余副鼻窦无殊。颈部PET/CT图像示新增右侧颈后三角及锁骨区糖代谢异常增高的淋巴结,较大且糖代谢较高者大小约为15.0MM×9.3MM,最大SUV值约为4.1;口咽、喉咽部无占位;甲状腺无肿大,其内密度不均匀减低。胸部PET/CT图像示双肺纹理增多,右肺上叶尖段及前段见团块状糖代谢异常增高灶,大小分别约为46.2MM×32.5MM和35.3MM×26.7MM,最大SUV值分别约为6.1和4.8,较前增大、密度变实、糖代谢增高,病灶与邻近胸膜分界不清;两肺见多枚类圆形不伴糖代谢异常增高的结节,较大者位于右肺中叶,直径约为17.7MM,较前增多、增大;两肺另见条索状密度增高影;右肺中叶见钙化结节;右肺门及纵隔隆突下见糖代谢异常增高的肿大淋巴结,较大且糖代谢较高者位于隆突下,大小约为20.6MM×13.5MM,最大SUV值约为4.9;左肺门影不大;右侧胸膜略增厚,左侧胸膜无增厚;右侧胸腔少量积液,引流管留置中;左侧胸腔无积液;心脏无明显增大;右侧腋窝见糖代谢轻度增高的增大淋巴结,大小约为14.1MM×9.5MM,最大SUV值约为1.9;左侧腋窝无明显肿大淋巴结;双侧乳腺无殊。腹部PET图像示胃壁均匀性轻度糖代谢生理性增强;肠道呈线型生理性糖代谢增强;肝、胆囊、胰、脾、双肾上腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整,各叶比例匀称,实质内未见明显占位;肝内外胆管无扩张;脾脏不大,密度均,未见明显占位;双侧肾内血管壁见钙化灶;胆囊、胰、双肾上腺无殊;腹膜后无明显肿大淋巴结;腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚;肠道呈线型生理性糖代谢增强;生殖器及双侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈,左前、右后壁见小囊状向外突起;子宫和双附件区未见明显占位;盆腔和双侧腹股沟无肿大淋巴结;盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列,生理曲度存在;平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质增生,考虑为退行性变;第12胸椎变扁,呈楔形变;左侧第9后肋见小圆形致密影,考虑为骨岛。</t>
   </si>
   <si>
     <t>右肺上叶尖段及前段</t>
@@ -3047,7 +3047,7 @@
     <t>肾盂</t>
   </si>
   <si>
-    <t>右肺下叶切除术后改变，残余右肺散在少量纤维增殖灶。右侧胸腔少量积液。肝囊肿。两肾囊肿。右肺下叶切除术后：右肺下叶术后缺如，残余右肺见散在索条影，边界欠清，与胸膜粘连。左肺纹理清晰，未见明显实质性病变。纵隔右移，两锁下、纵隔及两肺门未见明显肿大淋巴结。气管及余支气管分支通畅。右侧胸腔见少量积液，左侧胸腔未见积液。两侧胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S4~8见数个囊性灶，大者直径约6MM，增强扫描未见异常强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾见多发低密度灶，大者位于右肾，直径约25MM，增强扫描未见强化。两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。右侧肋骨呈术后改变，所见其余骨质未见破坏征象。</t>
+    <t>右肺下叶切除术后改变，残余右肺散在少量纤维增殖灶。_x0004_右侧胸腔少量积液。_x0004_肝囊肿。_x0004_两肾囊肿。右肺下叶切除术后：_x0004_右肺下叶术后缺如，残余右肺见散在索条影，边界欠清，与胸膜粘连。_x0004_左肺纹理清晰，未见明显实质性病变。_x0004_纵隔右移，两锁下、纵隔及两肺门未见明显肿大淋巴结。_x0004_气管及余支气管分支通畅。_x0004_右侧胸腔见少量积液，左侧胸腔未见积液。两侧胸膜未见增厚。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S4~8见数个囊性灶，大者直径约6MM，增强扫描未见异常强化。_x0004_肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。_x0004_两肾见多发低密度灶，大者位于右肾，直径约25MM，增强扫描未见强化。两肾下腺未见异常。_x0004_膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_右侧肋骨呈术后改变，所见其余骨质未见破坏征象。</t>
   </si>
   <si>
     <t>肾盂癌术后、化疗后复查，术区未见明确肿瘤复发征象；脂肪肝；左肺下叶尖段条索、类结节影，考虑增殖灶，大致同前；右肺上叶后基底段小结节，大致同前，考虑增殖灶可能性大；右锁骨下窝、纵隔小淋巴结，较前未见明显变化；左心房内充盈缺损影，较前未见明显变化；甲状腺两叶病灶，考虑结节性甲状腺肿；腰1椎体压缩性骨折，大致同前。肾盂癌术后、化疗后，与2015-10-14片对比：右肾术后缺失，局部未见明确软组织肿物。左肾及两侧肾下腺未见异常。肝脏形态、比例正常，轮廓光整，肝实质密度普遍减低，未见明显异常强化。肝内外胆管无扩张，胆囊不大，胆总管未见扩张，未见结石影。肝门区及门静脉未见明显异常。脾脏及胰腺大小、形态、密度未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。子宫大小、形态未见明显异常，子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。两侧腹股沟区、髂血管旁未见肿大淋巴结。两肺纹理清晰，左肺下叶尖段见条索、类结节影，大者直径约3MM，边界清楚，边缘不规整，与邻近胸膜牵拉粘连，大致同前。右肺上叶后基底段见一小结节，直径约为3MM，边界清楚，边缘规整，较前相仿。气管及支气管分支通畅。右锁骨下窝、左上气管旁、主动脉旁见数个小淋巴结，最大约6MM×8MM，边界清楚，较前未见明显变化。两侧胸腔未见积液。两侧胸膜未见增厚、粘连。左心房充盈欠佳，内见少许低密度影，未见明显强化，较前未见明显变化。扫描层面内甲状腺两叶见多个结节状低密度病灶，最大者约为8MM×11MM，增强后轻度强化或强化不明显，较前相仿。腰1椎体变扁呈楔形，椎体内见散在斑点斑块状致密影。余骨质未见明确破坏征象。</t>
@@ -3056,7 +3056,7 @@
     <t>肾盂,右肾</t>
   </si>
   <si>
-    <t>心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号心功能正常心超声检测值：LA   28MM       AO     27MM        MV E 0.55MM/s     EF 56%LV   45MM       IVS    11MM           A 0.57MM/s     FS 29% RA   28MM       LVPW   8MMRV   17MM       PA     18MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图未见异常。</t>
+    <t>心脏结构及运动未见异常_x0004__x0004_各房室腔及大血管未探及异常血流信号_x0004__x0004_心功能正常心超声检测值：_x0004__x0004_LA   28MMAO     27MMV E 0.55m/s     EF 56%_x0004__x0004_LV   45MMIVS    11MMA 0.57m/s     FS 29% _x0004__x0004_RA   28MMLVPW   8MM_x0004__x0004_RV   17MMPA     18MM_x0004__x0004__x0004__x0004_二维及Ｍ型超声心动图特征：_x0004__x0004_升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；_x0004__x0004_各房室腔径正常。_x0004__x0004_室壁厚度及运动正常。房、室间隔连续性完好。_x0004__x0004_各组瓣膜形态、结构及运动正常。_x0004__x0004_心包及心包腔未见异常。_x0004__x0004_彩色及频谱多普勒超声心动图未见异常。</t>
   </si>
   <si>
     <t>肺癌放化疗后复查，对比2016.10.11片：左肺门区肿物并左肺上叶节段性不张，较前相仿左肺下叶尖段、后段及左肺中叶、上叶、右肺上叶舌段多发斑片状灶，较前相仿，考虑炎症。纵隔、左肺门淋巴结，较前未见明显变化。两侧半卵圆中心、两额叶少许缺血灶。副鼻窦炎。肝S7/8小囊肿。肺癌化疗后复查，对比2016.10.11片：左肺体积缩小，气管、纵隔向左侧偏移，左侧中间段支气管及左中肺、左上肺支气管分支狭窄，左肺门区见不规则软组织影，与不张的左肺组织及左肺门、纵隔淋巴结相互融合，分界不清，范围难测量，病灶信号不均匀，增强扫描呈不均匀较明显强化，较前相仿。左肺下叶尖段、后段及左肺中叶、上叶、右肺上叶舌段见多发斑片状灶，边界欠清；较前变化不大。左下上气管旁、主肺动脉窗、隆突上、左肺门见多个淋巴结，其中左肺门淋巴结与左上肺门区病灶相互融合，较前未见明显变化。两侧胸腔未见积液，左上胸膜稍增厚，右侧胸膜未见增厚、粘连。肝S7/8见结节状异常信号灶，T1WI低信号，T2WI高信号，增强扫描未见明显强化，范围约8MM×5MM。两侧半卵圆中心、两额叶见少许斑片状异常信号灶，边界清晰，较大者5MM×7MM（Se18，Im6），T1WI呈稍低信号，T2WI、FLAIR呈稍高信号，增强扫描未见强化。余大脑各叶、小脑及脑干形态正常，信号正常，增强后亦未见异常信号区；各脑室及脑池大小、形态未见异常；大脑中线结构未见移位；颅骨质未见破坏。两侧下颌窦、筛窦粘膜稍增厚，蝶窦、乳突充气良好，骨壁完整。</t>
@@ -3074,7 +3074,7 @@
     <t>胰腺,右侧锁骨下,纵隔,两肺门多发淋巴结,胰腺颈部,胰腺</t>
   </si>
   <si>
-    <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，30，20-37，右房内径，32，19-40，右室舒张末内径，39，35-56，右室收缩末内径，27，23-35，室间隔厚度，9，6-11，右室后壁厚度，9，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，肺动脉血流图未见异常。，三、，右心功能测定：，LVEF：57%；，二尖瓣血流图示E/A，&amp;lt；，1；DT：169MMs，四、组织多普勒测定：，DTI示S波峰值：9.36CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
+    <t>静息状态上超声心动图未见异常常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,30,20-37,右房内径,32,19-40,右室舒张末内径,39,35-56,右室收缩末内径,27,23-35,室间隔厚度,9,6-11,右室后壁厚度,9,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。,3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。,4、左房室不大，肺动脉不增宽，肺动脉血流图未见异常。,三、,右心功能测定：,LVEF：57%;,二尖瓣血流图示E/A,&amp;lt;,1;DT:169MMs,四、组织多普勒测定：,DTI示S波峰值:9.36CM/s;E'/A',&amp;lt;,1,五、结论：,</t>
   </si>
   <si>
     <t>左肺癌化疗后复查，与2013-2-25对比：左上肺肿块，较前增大。两肺多发转移，较前增大、增多。纵隔及左肺门淋巴结，大致同前。肝S6小囊肿，左肾小囊肿，左肾小结石。左肺癌化疗6程后复查，与2013-2-25对比：两侧胸廓对称，左肺上叶后基底段可见一肿物，大小约为39MM×49MM，边界清楚，可见分叶及毛刺，邻近胸膜牵拉，增强扫描后实性成分可见强化。与前片对比，病灶大小较前增大。余两肺可见多发结节灶，大小约2MM~9MM不等，边界清楚，较前增大、增多。两上气管旁、主动脉旁、左肺门可见多个小淋巴结，最大短径约5MM，孤立散在，右侧肺门未见肿大淋巴结。两侧未见胸腔积液及胸膜增厚。肝脏大小形态正常，各叶比例在正常范围内，轮廓光整，肝S6可见一点状低密度灶，短径约3MM，未见强化。肝内外胆管未见扩张，胆囊不大，壁不厚，内未见结石影。肝门区正常，门静脉所见正常。脾脏不大，密度均匀。胰腺大小形态及密度未见异常。右肾及肾下腺所见正常。左肾可见小结石，左肾见小囊肿，短径约4MM，未见强化。腹主动脉旁未见肿大淋巴结。所见骨质结构未见破坏征象。</t>
@@ -3095,7 +3095,7 @@
     <t>右乳癌术后化疗后：肝右左叶交界处病灶，较2013-6-25片稍增大，肝内胆管扩张较前明显；左肾下腺结节，肝左后叶小病灶，较前片相仿；两肾小囊肿；双侧少量胸水。肝右左叶交界处见不规则异常信号灶，大小约3MM×3.5MM，T1WI为低信号，边缘见斑片状稍高信号影，T2WI为等略高信号，动脉期异常不均匀强化，门脉期呈边缘持续强化，肝右叶肝内胆管扩张，病灶与胆囊分界不清，另见肝左后叶一小点状T2高T1低持续强化灶，大小约6MM，肝内血管尚可。脾脏饱满，信号尚均。胰腺无殊。两肾见小囊性灶。左肾下腺见一结节异常信号灶，大小约1CM×1.2CM，不均匀强化。后腹膜未见肿大淋巴結，腹腔未见明确积液。双侧胸腔见少量弧形液性信号灶。</t>
   </si>
   <si>
-    <t>1.结合病史考虑左肺上叶中央型MT，纵隔淋巴结转移；两肺下叶及左肺中叶炎症（部分趋于陈旧），左侧胸腔积液，左肺上叶不张；2.肝脏、两肾不伴糖代谢增高的囊性低密度灶，考虑为良性病变。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示左肺上叶近支气管开口处糖代谢增高的肿块，最大SUV值为12.2，左肺上叶支气管截断伴上叶不张，肿块与不张的肺组织分界不清，左肺中叶支气管受压变窄，左肺上叶不张的肺组织局部斑片状糖代谢增高，最大SUV值为6.2；纵隔隆突上及食管左侧糖代谢增高的肿大淋巴结，最大SUV值为7.0，较大者位于隆突上，大小约为30.5MM×20.0MM；两肺下叶多发小结节、条索影、条片影，部分伴糖代谢增高，最大SUV值为2.8，部分伴钙化，左肺中叶内侧段糖代谢增高的条片影，最大SUV值为5.3；余肺野、右肺门、胸壁、腋窝等均未见明显糖代谢异常增高灶，余肺野未见明显异常占位，右肺门影不大，左侧胸腔积液；心脏无明显增大；两侧腋窝无明显肿大淋巴结。左肩关节糖代谢增高，最大SUV值为3.3，考虑为骨关节病所致。腹部PET图像见胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，肝内多发囊性低密度灶，其中较大者位于近肝门处，约9.2MM×7.4MM；肝内外胆管无扩张；脾脏不大，密度均，未见异常占位；两肾囊性低密度灶，较大者约11.0MM×13.0MM，胆囊、胰、两肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈，壁光滑无增厚；两侧精囊腺形态可；两侧膀胱精囊三角对称；前列腺无明显增大，内见小钙化灶；盆腔内未见占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见明显异常。</t>
+    <t>1.结合病史考虑左肺上叶中央型MT，纵隔淋巴结转移；两肺下叶及左肺中叶炎症（部分趋于陈旧），左侧胸腔积液，左肺上叶不张；_x0004_2.肝脏、两肾不伴糖代谢增高的囊性低密度灶，考虑为良性病变。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示左肺上叶近支气管开口处糖代谢增高的肿块，最大SUV值为12.2，左肺上叶支气管截断伴上叶不张，肿块与不张的肺组织分界不清，左肺中叶支气管受压变窄，左肺上叶不张的肺组织局部斑片状糖代谢增高，最大SUV值为6.2；纵隔隆突上及食管左侧糖代谢增高的肿大淋巴结，最大SUV值为7.0，较大者位于隆突上，大小约为30.5MM×20.0MM；两肺下叶多发小结节、条索影、条片影，部分伴糖代谢增高，最大SUV值为2.8，部分伴钙化，左肺中叶内侧段糖代谢增高的条片影，最大SUV值为5.3；余肺野、右肺门、胸壁、腋窝等均未见明显糖代谢异常增高灶，余肺野未见明显异常占位，右肺门影不大，左侧胸腔积液；心脏无明显增大；两侧腋窝无明显肿大淋巴结。左肩关节糖代谢增高，最大SUV值为3.3，考虑为骨关节病所致。腹部PET图像见胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，肝内多发囊性低密度灶，其中较大者位于近肝门处，约9.2MM×7.4MM；肝内外胆管无扩张；脾脏不大，密度均，未见异常占位；两肾囊性低密度灶，较大者约11.0MM×13.0MM，胆囊、胰、两肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈，壁光滑无增厚；两侧精囊腺形态可；两侧膀胱精囊三角对称；前列腺无明显增大，内见小钙化灶；盆腔内未见占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见明显异常。</t>
   </si>
   <si>
     <t>右肺腺癌治疗后复查，与2013-7-19日片对比：右下肺及上肺不张，大致同前。右侧大量胸腔积液，较前稍减少。肝内多发转移瘤，较前增多，部分增大。腹腔少量积液，较前稍增多。两肾多发结节，大致同前。胸骨、颈椎、胸椎、腰椎骨转移瘤，大致同前。右肺腺癌治疗后复查，与2013-7-19日片对比：右侧胸腔见大量积液，右肺上叶及下叶体积缩小，增强扫描右肺不张、实变肺组织强化明显；余两肺野清晰，未见新增病灶。气管及支气管分支通畅。两肺门和纵隔未见明显肿大淋巴结。左侧胸膜未见增厚。左侧胸腔未见积液。肝脏形态失常，肝右叶增大，其外形轮廓略呈波浪状，肝内散在多发结节灶，边界不清，最大者约66MM×64MM，边界不清，部分融合，增强扫描不均匀强化，侵犯肝左静脉、门静脉左前支，病灶较前增多，部分增大。肝内外胆管无扩张。胆囊不大，胆囊壁均匀增厚，增强扫描粘膜强化明显。肝门区未见肿大淋巴结。腹腔见少量积液，较前稍增多。脾稍大，最厚处约46MM，密度均匀。胰腺形态、大小及密度未见异常。两侧肾下腺未见异常。两肾实质内见多发结节灶，最大者约14MM×4MM，边界不清，增强扫描轻度强化，大致同前。胸骨、C7、T1、T6、T8、T9椎体及附件、T10、T11、L1右侧附件、L2、L3椎体见不规则致密影，边欠清，范围较前无明显变化。右侧第5肋腋段见致密灶，较前无明显变化。</t>
@@ -3137,7 +3137,7 @@
     <t>肝脏,右侧第8肋,骶骨,第2腰椎</t>
   </si>
   <si>
-    <t>右乳癌根治术后、右肺腺癌靶向治疗后复查，对比2017.03.29片：右乳癌术后改变，局部未见肿瘤复发征象。左乳多发良性钙化灶，较前相仿。右肺下叶斑片灶，较前未见明显变化。左肺下叶前段、左侧斜裂斑片灶，考虑增殖灶可能性大，大致同前。右锁下小淋巴结，较前相仿。肝S7胆管结石。肝S4小囊肿。肝S7包膜上结节，考虑血管平滑肌脂肪瘤可能性大。左侧第7肋骨腋段髓腔密度局限性增高，性质待定。骨质疏松。右乳癌根治术后、右肺腺癌靶向治疗后复查，对比2017.03.29片：右侧乳腺缺如，右前胸壁皮肤稍增厚同前，未见明确结节、肿物影。左乳大小、形态正常，内见散在点状钙化灶，较大直径约2MM，未见明确结节肿物影。两侧腋窝及两侧内乳区未见明确肿大淋巴结。右肺下叶舌段见一不规则软组织灶，大小约8MM×11MM（纵隔窗显示），边界不清，边缘见分叶及长短毛刺，牵拉邻近胸膜，密度欠均匀，未见坏死及钙化，增强后可见强化，较前未见明显变化；病灶远端见少许条索及斑片状模糊影，范围较前相仿。右肺下叶下舌段支气管延伸入内，远端截断。左肺下叶前段、中叶、上叶侧斜裂旁见小斑片灶，较大者约5MM×4MM，边界尚清，大致同前。余两肺清晰，未见明确结节影。气管及余支气管分枝通畅。右锁下小淋巴结大致同前，最大者短径约4MM；纵隔内及两肺门未见明确肿大淋巴结。两侧胸腔未见积液。胸膜未见增厚。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，肝S7见一点状致密灶，直径约2MM。肝S4见小囊性灶，较大直径约4MM，边界清晰，未见强化。肝S6包膜上见一脂肪密度结节，大小约10MM×9MM，增强扫描强化不明显，病灶内见小血管穿行。肝内胆管、胆总管未见扩张，内未见结石。胆囊未见异常。肝门区及门静脉未见异常。脾大小形态未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾、两肾下腺未见异常。腹主动脉旁未见肿大淋巴结。左侧第7肋骨腋段髓腔密度局限性增高，扫描所见骨质呈骨质疏松改变，未见明确骨质破坏。</t>
+    <t>右乳癌根治术后、右肺腺癌靶向治疗后复查，对比2017.03.29片：_x0004_右乳癌术后改变，局部未见肿瘤复发征象。_x0004_左乳多发良性钙化灶，较前相仿。_x0004_右肺下叶斑片灶，较前未见明显变化。_x0004_左肺下叶前段、左侧斜裂斑片灶，考虑增殖灶可能性大，大致同前。_x0004_右锁下小淋巴结，较前相仿。_x0004_肝S7胆管结石。肝S4小囊肿。肝S7包膜上结节，考虑血管平滑肌脂肪瘤可能性大。左侧第7肋骨腋段髓腔密度局限性增高，性质待定。骨质疏松。右乳癌根治术后、右肺腺癌靶向治疗后复查，对比2017.03.29片：_x0004_右侧乳腺缺如，右前胸壁皮肤稍增厚同前，未见明确结节、肿物影。_x0004_左乳大小、形态正常，内见散在点状钙化灶，较大直径约2MM，未见明确结节肿物影。_x0004_两侧腋窝及两侧内乳区未见明确肿大淋巴结。_x0004_右肺下叶舌段见一不规则软组织灶，大小约8MM×11MM（纵隔窗显示），边界不清，边缘见分叶及长短毛刺，牵拉邻近胸膜，密度欠均匀，未见坏死及钙化，增强后可见强化，较前未见明显变化；病灶远端见少许条索及斑片状模糊影，范围较前相仿。右肺下叶下舌段支气管延伸入内，远端截断。左肺下叶前段、中叶、上叶侧斜裂旁见小斑片灶，较大者约5MM×4MM，边界尚清，大致同前。余两肺清晰，未见明确结节影。气管及余支气管分枝通畅。右锁下小淋巴结大致同前，最大者短径约4MM；纵隔内及两肺门未见明确肿大淋巴结。两侧胸腔未见积液。胸膜未见增厚。_x0004_肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，肝S7见一点状致密灶，直径约2MM。肝S4见小囊性灶，较大直径约4MM，边界清晰，未见强化。肝S6包膜上见一脂肪密度结节，大小约10MM×9MM，增强扫描强化不明显，病灶内见小血管穿行。肝内胆管、胆总管未见扩张，内未见结石。胆囊未见异常。肝门区及门静脉未见异常。脾大小形态未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。_x0004_两肾、两肾下腺未见异常。腹主动脉旁未见肿大淋巴结。_x0004_左侧第7肋骨腋段髓腔密度局限性增高，扫描所见骨质呈骨质疏松改变，未见明确骨质破坏。</t>
   </si>
   <si>
     <t>右乳,右肺</t>
@@ -3164,7 +3164,7 @@
     <t>None与2010-10-12胸部CT比较：1、左侧胸膜多发增厚及肿块结节较前明显，现较厚约29MM（图34），原约23MM（IMA35），左心缘旁肿物较前明显增大，现约34MM×22MM（图30），原约18MM×22MM（图29）。左侧胸水同前相仿；右侧新见多量胸水及胸膜小结节（图9）。2、两肺多发小结节较前增大，现较大者约14MM（图16），原约12MM（IMA15）。左上肺膨胀不全及片絮影较前进展。左侧膈肌较前增厚，侵犯肝脏左叶范围较前增大（IMA49）。3、纵隔、右锁骨淋巴结部分较前缩小，4R组淋巴结较前增大，现约26MM×20MM（图17），原约17MM×15MM（IMA17）。4、左侧第二肋骨破坏同前相仿（IMA13），左侧第九肋骨骨质破坏（IMA52）；余胸廓余骨质未见破坏。</t>
   </si>
   <si>
-    <t>肝内多发边缘强化结节，考虑为肝血管瘤可能性大。肝内多发不均匀强化或环形强化病变，结合病史转移瘤可能大胆囊结石。左肾错构瘤。约T9胸椎可疑骨质破坏肝脏饱满，表面光滑，各叶比例协调，于肝右左叶内可见多发大小不等的低密度灶，边缘模糊不清，最大者位于左后叶，直径约6.8CM。增强扫描早期可见病灶边缘呈结节状强化，其后强化向中央扩展，延迟期病灶进一步强化。肝内另见多个大小不等的低密度灶，较大者位于肝左叶前下段，最大径约6，7CM，增强后不均匀强化或环形强化。胆囊不大，壁不厚，胆囊底部见一环形高密度影。胰腺、脾脏形态正常。左肾前外侧皮质见一混杂密度影突出于肾皮质表面，最大径约4.5CM，基底部肾皮质结构紊乱，病变大部分为脂肪密度影，内部可见不规则软组织密度影。增强扫描病变实质部分明显强化。约T9胸椎可见限局性骨质密度减低。</t>
+    <t>肝内多发边缘强化结节，考虑为肝血管瘤可能性大。肝内多发不均匀强化或环形强化病变，结合病史转移瘤可能大胆囊结石。左肾错构瘤。约T9胸椎可疑骨质破坏肝脏饱满，表面光滑，各叶比例协调，于肝右左叶内可见多发大小不等的低密度灶，边缘模糊不清，最大者位于左后叶，直径约6.8CM。增强扫描早期可见病灶边缘呈结节状强化，其后强化向中央扩展，延迟期病灶进一步强化。肝内另见多个大小不等的低密度灶，较大者位于肝左叶前下段，最大径约6,7CM，增强后不均匀强化或环形强化。胆囊不大，壁不厚，胆囊底部见一环形高密度影。胰腺、脾脏形态正常。左肾前外侧皮质见一混杂密度影突出于肾皮质表面，最大径约4.5CM，基底部肾皮质结构紊乱，病变大部分为脂肪密度影，内部可见不规则软组织密度影。增强扫描病变实质部分明显强化。约T9胸椎可见限局性骨质密度减低。</t>
   </si>
   <si>
     <t>左下肺癌术后改变。左上肺局限性肺不张，较前好转。左肺中上叶少许斑片、条索灶，考虑炎症，较前减少。左侧少量胸腔积液，部分包裹，较前减少。左侧胸膜稍增厚、粘连。左乳外下象限小结节，考虑良性病变，大致同前。肝散在小囊肿。右肾小囊肿。左下肺癌术后，对比2016-3-25CT：左下肺术后缺失，支气管残端未见明显软组织肿物。左肺上叶肺门旁见条片状肺不张组织，内见条索状致密影，强化明显，范围较前缩小。左肺中叶及上叶可见散在斑片、条索灶，部分边界尚清，与邻近胸膜粘连。右肺未见明显实质性病变。气管及其余支气管尚通畅。纵隔、两肺门未见明显肿大淋巴结。左侧胸腔少量积液，部分包裹，较前减少；右侧未见胸腔积液。左侧胸膜稍增厚、粘连，右侧胸膜未见增厚。左侧乳腺外下象限内见强化小结节，大者直径约6MM，边界尚清。左侧胸壁呈术后改变。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内可见散在小囊状低密度灶，大者位于S5，直径约5MM，增强扫描未见强化。肝内胆管未见扩张。胆囊大小正常，胆总管未见扩张，其内未见结石。肝门区结构未见异常。门静脉主干及分支未见充盈缺损。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见小囊性灶，直径约3MM，未见强化。左肾未见明确异常。两肾下腺未见明确异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围骨质结构未见破坏征象。</t>
@@ -3188,13 +3188,13 @@
     <t>12MM×10MM</t>
   </si>
   <si>
-    <t>None肺腺癌4程化疗后，对比2017-11-18片：1、左侧胸腔内见少量包裹性积气，较前明显减少；左侧胸腔中量包裹性积液，较前稍减少。2、左肺中上叶局限性肺不张，体积明显缩小，较前变化不明显。左肺下叶轻度受压，残余含气肺组织内见条片状密度增高影，边界欠清，增强扫描见轻度强化，大致同前。3、左侧胸膜弥漫性增厚并强化，最厚处约12MM，大致同前。4、右肺下叶尖后段见一结节，密度不均匀，边缘部分似见小空洞，直径约7MM，增强扫描似有轻度强化，大致同前。5、右上肺背段新出现一小结节影（Se12，Im135），边界欠清，直径约3MM，建议复查。6、右下肺舌段、右肺上叶背段、外基底段见数个小结节状稍高密度影，部分边界不清，周围见条索影，较大者短径约4MM，考虑增殖灶可能性大。7、右肺上叶见一类圆形薄壁无肺纹理区，考虑肺大泡，大致同前。8、左侧锁骨下区、左下、上气管旁、血管前、隆突上、左肺门见多个肿大淋巴结，大者约为11MM×8MM，边界不清，密度略不均匀，增强扫描不均匀强化，大致同前。9、右侧胸腔未见积液。右侧胸膜无增厚、粘连。10、肝内见多个散在类圆形低密度灶，大者直径约15MM，边界清，无强化。11、颈部未见明显病变。12、扫描范围内骨质结构未见破坏征象。</t>
-  </si>
-  <si>
-    <t>静息状态上超声心动图未见异常(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，32，20-37MM，右房内径，39，19-40MM，右室舒张末内径，50，35-56MM，右室收缩末内径，31，23-35MM，室间隔厚度，10，6-11MM，右室后壁厚度，10，6-11MM，肺动脉收缩压，32，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，67，%，二尖瓣血流图：，E、A两峰，，E/A，&amp;gt；，1；DT：，170，ms，DTI示S波峰值：，10，cm/s；E/A，&amp;gt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，正常，，右室内径，正常，，右室壁厚度，正常，，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，，开放不受限，彩色多普勒，示轻微，二尖瓣反流。，3、主动脉窦部，不增宽，，升主动脉，不增宽，，主动脉瓣，不增厚，，，开放不受限，，彩色多普勒，未测及，主动脉瓣反流。，4、左房内径，正常，，左室内径，正常，，肺动脉，不增宽，，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
-  </si>
-  <si>
-    <t>肺癌化疗后，与2016-11-11片对比：脑内未见明显异常。T2、T10椎体异常信号灶，考虑良性可能性大，建议随诊。T12椎体下缘病灶，考虑许莫氏结节。L3/4~L5/S1椎间盘轻度膨出。肺癌化疗后，与2016-11-11片对比：两侧大脑半球对称，灰白质分界清楚。大脑各叶、小脑、脑干形态未见异常，信号均匀。各脑室及脑池大小、形态未见异常；大脑中线结构未见移位，未见占位性病变。颅骨骨质未见破坏。扫描范围内所见两侧下颌窦、筛窦、蝶窦、乳突充气良好，骨壁完整。两眼球后未见占位性病变。胸椎、腰椎顺列齐，腰椎生理弯曲变直，T2、T10椎体见一结节状异常信号灶，大小约为15MM×11MM×16MM，边界欠清，T1WI、T2WI呈不均匀高、低信号灶，增强扫描未见明显强化。T12椎体下缘见一结节状缺损，直径约为8MM，与椎间盘相连。余各椎体骨质形态正常，髓腔信号均匀，未见明显异常信号灶。椎体各附件未见异常。脊髓形态正常，信号均匀，椎管未见狭窄。腰椎椎间盘信号减低，L3/4~L5/S1椎间盘向后轻度膨出，硬脊膜囊前缘轻度受压，两侧神经根未见明显受压。周围软组织未见明显异常。</t>
+    <t>None肺腺癌4程化疗后，对比2017-11-18片：_x0004_1、左侧胸腔内见少量包裹性积气，较前明显减少；左侧胸腔中量包裹性积液，较前稍减少。_x0004_2、左肺中上叶局限性肺不张，体积明显缩小，较前变化不明显。左肺下叶轻度受压，残余含气肺组织内见条片状密度增高影，边界欠清，增强扫描见轻度强化，大致同前。_x0004_3、左侧胸膜弥漫性增厚并强化，最厚处约12MM，大致同前。_x0004_4、右肺下叶尖后段见一结节，密度不均匀，边缘部分似见小空洞，直径约7MM，增强扫描似有轻度强化，大致同前。_x0004_5、右上肺背段新出现一小结节影（Se12，Im135），边界欠清，直径约3MM，建议复查。_x0004_6、右下肺舌段、右肺上叶背段、外基底段见数个小结节状稍高密度影，部分边界不清，周围见条索影，较大者短径约4MM，考虑增殖灶可能性大。_x0004_7、右肺上叶见一类圆形薄壁无肺纹理区，考虑肺大泡，大致同前。_x0004_8、左侧锁骨下区、左下、上气管旁、血管前、隆突上、左肺门见多个肿大淋巴结，大者约为11MM×8MM，边界不清，密度略不均匀，增强扫描不均匀强化，大致同前。_x0004_9、右侧胸腔未见积液。右侧胸膜无增厚、粘连。_x0004_10、肝内见多个散在类圆形低密度灶，大者直径约15MM，边界清，无强化。_x0004_11、颈部未见明显病变。_x0004_12、扫描范围内骨质结构未见破坏征象。</t>
+  </si>
+  <si>
+    <t>静息状态上超声心动图未见异常(心脏彩色多普勒超声+右心功能测定+TDI),常规检查切面观,：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、M型及血流多普勒超声测量：,名称,测量值,正常值,主动脉根部内径,32,20-37MM,右房内径,39,19-40MM,右室舒张末内径,50,35-56MM,右室收缩末内径,31,23-35MM,室间隔厚度,10,6-11MM,右室后壁厚度,10,6-11MM,肺动脉收缩压,32,&amp;lt;40MMHg,医学图像序列2行2列,宽：110,二、右心功能测定及组织多普勒显像测量:,右室射血分数（LVEF）：,67,%,二尖瓣血流图：,E、A两峰,，E/A,&amp;gt;,1；DT：,170,ms,DTI示S波峰值：,10,cm/s；E/A,&amp;gt;,1,三、普通二维超声心动图和各心腔及大血管血流显像：,1、右房内径,正常,，右室内径,正常,，右室壁厚度,正常,，静息状态上右室各节段收缩活动未见异常。,2、二尖瓣,不增厚,，开放不受限，彩色多普勒,示轻微,二尖瓣反流。,3、主动脉窦部,不增宽,，升主动脉,不增宽,，主动脉瓣,不增厚,，,开放不受限,，彩色多普勒,未测及,主动脉瓣反流。,4、左房内径,正常,，左室内径,正常,，肺动脉,不增宽,，三尖瓣不增厚，开放不受限，彩色多普勒,示轻微,三尖瓣反流。,5、心包腔内,未见明显积液,。,四、结论：,</t>
+  </si>
+  <si>
+    <t>肺癌化疗后，与2016-11-11片对比：_x0004_脑内未见明显异常。_x0004_T2、T10椎体异常信号灶，考虑良性可能性大，建议随诊。_x0004_T12椎体下缘病灶，考虑许莫氏结节。_x0004_L3/4~L5/S1椎间盘轻度膨出。_x0004_肺癌化疗后，与2016-11-11片对比：_x0004_两侧大脑半球对称，灰白质分界清楚。_x0004_大脑各叶、小脑、脑干形态未见异常，信号均匀。_x0004_各脑室及脑池大小、形态未见异常；大脑中线结构未见移位，未见占位性病变。_x0004_颅骨骨质未见破坏。_x0004_扫描范围内所见两侧下颌窦、筛窦、蝶窦、乳突充气良好，骨壁完整。_x0004_两眼球后未见占位性病变。_x0004_胸椎、腰椎顺列齐，腰椎生理弯曲变直，T2、T10椎体见一结节状异常信号灶，大小约为15MM×11MM×16MM，边界欠清，T1WI、T2WI呈不均匀高、低信号灶，增强扫描未见明显强化。T12椎体下缘见一结节状缺损，直径约为8MM，与椎间盘相连。余各椎体骨质形态正常，髓腔信号均匀，未见明显异常信号灶。椎体各附件未见异常。_x0004_脊髓形态正常，信号均匀，椎管未见狭窄。_x0004_腰椎椎间盘信号减低，L3/4~L5/S1椎间盘向后轻度膨出，硬脊膜囊前缘轻度受压，两侧神经根未见明显受压。_x0004_周围软组织未见明显异常。</t>
   </si>
   <si>
     <t>乳腺癌综合治疗后化疗后复查：左侧乳腺内侧小结节，较前缩小。左肺上叶近肺门区病变，较前明显缩小。左侧胸腔少量积液，大致同前。左肺下叶片状病变，考虑为炎症，较前缩小。肝脏多发转移瘤，较前缩小。胸腰椎椎体多发稍高密度灶，考虑骨转移瘤可能性大。乳腺癌综合治疗后化疗后复查，对比2014.10.28片：右侧乳腺术后缺失，右侧胸壁未见异常密度灶。左侧乳腺内侧缘见一小结节，直径约4MM，较前缩小。左侧腋窝见数个小淋巴结，较大者约8MM×8MM，大致同前。两侧锁骨下区及右侧腋窝未见肿大淋巴结。左肺上叶近肺门区软组织增多，边界不清，准确范围难以测量，病灶范围较前缩小。左肺下叶近水平裂见片状稍高密度病灶，边界不清，范围较前缩小，密度较前变淡。右肺纹理清晰，未见结节影。气管及支气管分支通畅，未见明显软组织肿物或受压变窄。两侧肺门及纵隔未见明确肿大淋巴结。左侧胸腔见少量积液，大致同前。右侧胸腔未见积液，两侧胸膜未见增厚。肝脏各叶比例在正常范围以内，其外形轮廓光整，肝内见弥漫分布低密度病灶，边界不清，周围见不均匀轻度环形强化，最大者直径约17MM，病灶较前缩小。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾稍大，密度均匀。胰腺大小、形态正常，密度均匀。两侧肾下腺未见异常。扫描范围胸腰椎椎体见多发边界不清的稍高密度灶，局部骨小梁模糊。</t>
@@ -3212,13 +3212,13 @@
     <t>两肺,左肺下叶尖段,肝S4,S7</t>
   </si>
   <si>
-    <t>None左肺癌术后化14疗、放疗后，对比2017-10-09CT：左肺呈术后改变，支气管残端未见明确肿物。左肺中上叶多发斑片状、片状高密度灶，密度不均匀，其中上叶病变内可见支气管充气征，考虑炎症并左肺上叶局限性肺不张可能性大，部分范围缩小，部分较前增大，建议治疗后复查。左上气管旁淋巴结，短径约8MM，较前稍缩小。左下气管旁、左肺门小淋巴结，大者短径约8MM，对比前片，左下气管旁淋巴结较前缩小。左侧胸腔少量积液。左侧第5、6后肋呈术后改变。肝S4类结节稍低密度灶（大小约7MM×11MM），较前相仿，转移瘤？建议随诊复查或MR进一步检查。右肾体积缩小。两肾盂小结石，右肾盂旁囊肿，较前相仿。</t>
+    <t>None左肺癌术后化14疗、放疗后，对比2017-10-09CT：_x0004_左肺呈术后改变，支气管残端未见明确肿物。_x0004_左肺中上叶多发斑片状、片状高密度灶，密度不均匀，其中上叶病变内可见支气管充气征，考虑炎症并左肺上叶局限性肺不张可能性大，部分范围缩小，部分较前增大，建议治疗后复查。_x0004_左上气管旁淋巴结，短径约8MM，较前稍缩小。_x0004_左下气管旁、左肺门小淋巴结，大者短径约8MM，对比前片，左下气管旁淋巴结较前缩小。_x0004_左侧胸腔少量积液。_x0004_左侧第5、6后肋呈术后改变。_x0004_肝S4类结节稍低密度灶（大小约7MM×11MM），较前相仿，转移瘤？建议随诊复查或MR进一步检查。_x0004_右肾体积缩小。两肾盂小结石，右肾盂旁囊肿，较前相仿。</t>
   </si>
   <si>
     <t>肝S4</t>
   </si>
   <si>
-    <t>肝囊肿前列腺钙化灶胆囊、脾脏、胰腺、两肾、膀胱未见明显占位病变声像。两侧输尿管未见明确扩张。肝脏大小、形态正常，包膜光滑，S4见一个类圆形囊性病灶，大小约21MM×17MM，囊壁薄、光滑，囊内透声好，后方回声增强。CDFI：肝动脉、门静脉血流通畅，为向肝血流信号，充盈良好，肝内未见明确异常血流信号。门静脉最大血流速度约7CM/s。胆囊大小形态正常，囊壁不厚，胆囊内未见明显异常回声。脾脏大小形态正常，包膜光滑，实质回声均匀，未见明显异常回声。胰腺大小形态正常，实质回声均匀，未见明显异常回声。两肾大小形态正常，实质回声均匀，未见明显异常回声。CDFI：两肾血流呈珊瑚状，未见明确异常血流信号。两侧输尿管未见明确扩张。膀胱充盈良好，膀胱壁光滑，不厚，膀胱腔内未见明确肿物回声。前列腺大小形态尚正常，大小约43MM×42MM×34MM，包膜光滑，实质回声均匀，见强回声斑，约6MM。</t>
+    <t>肝囊肿_x0004__x0004_前列腺钙化灶_x0004__x0004_胆囊、脾脏、胰腺、两肾、膀胱未见明显占位病变声像。_x0004__x0004_两侧输尿管未见明确扩张。_x0004__x0004_肝脏大小、形态正常，包膜光滑，S4见一个类圆形囊性病灶，大小约21MM×17MM，囊壁薄、光滑，囊内透声好，后方回声增强。_x0004__x0004_CDFI：肝动脉、门静脉血流通畅，为向肝血流信号，充盈良好，肝内未见明确异常血流信号。门静脉最大血流速度约7CM/s。_x0004__x0004_胆囊大小形态正常，囊壁不厚，胆囊内未见明显异常回声。_x0004__x0004_脾脏大小形态正常，包膜光滑，实质回声均匀，未见明显异常回声。_x0004__x0004_胰腺大小形态正常，实质回声均匀，未见明显异常回声。_x0004__x0004_两肾大小形态正常，实质回声均匀，未见明显异常回声。_x0004__x0004_CDFI：两肾血流呈珊瑚状，未见明确异常血流信号。_x0004__x0004_两侧输尿管未见明确扩张。_x0004__x0004_膀胱充盈良好，膀胱壁光滑，不厚，膀胱腔内未见明确肿物回声。_x0004__x0004_前列腺大小形态尚正常，大小约43MM×42MM×34MM，包膜光滑，实质回声均匀，见强回声斑，约6MM。_x0004__x0004_</t>
   </si>
   <si>
     <t>左上肺癌术后化疗后：左肺、右肺叶小类结节灶，考虑增殖灶，较前未见明显变化。右肺上叶及左肺中叶少许纤维增殖灶。左上胸膜稍增厚。肝小囊肿。两肾囊肿。右侧肾下腺结节状稍增粗，较前相仿，建议随诊。左上肺癌术后化疗后，与2015-12-30片对比：左肺上叶术后缺如，左肺上叶支气管中断，断端见金属密影，未见明确软组织肿块影或异常强化灶。左肺、右肺叶见散在小类结节灶，短径约3MM，边界欠清，密度欠均匀，较前未见明显变化；右肺上叶及左肺中叶尚见少许条索影，边界欠清。气管及余支气管分支未见明显狭窄及异常扩张。纵隔及两肺门未见明显肿大淋巴结。两侧胸腔未见积液。左上胸膜稍增厚。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝内见数个小类圆形低密度灶，直径约2~4MM，边界清，密度均匀，未见强化。肝内胆管未见扩张，其内未见结石。胆囊大小未见异常，其内未见结石。胆总管未见扩张，其内未见结石。肝门区结构未见异常。门静脉未见充盈缺损。脾大小未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾见多发小囊性低密度病变，较大者短径约10MM，边界清，增强未见强化。右侧肾下腺见结节状稍增粗。左肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围内骨质未见破坏征象。</t>
@@ -3236,7 +3236,7 @@
     <t>左侧胸腔,左侧胸膜,左锁下,纵隔及左肺门数个淋巴结,肝S5前上缘,两侧肾下腺,多个椎体,肋骨,左侧锁骨头,两侧肩胛骨,右侧髂骨,左肾</t>
   </si>
   <si>
-    <t>右上肺癌术后、化疗后，右侧胸膜稍增厚，局部未见明确复发征象。肝S6低密度灶较前（2008-11-06）无明显变化，考虑肝囊肿。两肾囊肿。右上肺癌术后、化疗后复查：右上肺缺失，右上肺野见少许散在条索影，与2009-12-24日CT片对比，未见明显变化，余两肺纹理清晰，肺内未见实质性病变。气管及左肺、右下肺支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。右侧胸膜增厚，左侧胸膜无增厚、粘连。右侧胸壁骨呈术后改变，胸椎未见异常。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。肝S6见散在几个小圆形低密度灶，短径约3MM~6MM，边界清楚，增强扫描未见强化。与2008-11-06片对比，未见明显变化。肝内外胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影。肝门区正常。肝静脉、门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾实质内见散在多个类圆形低密度灶，最大者约23MM×26MM，边界清楚，增强扫描未见强化。两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。</t>
+    <t>右上肺癌术后、化疗后，右侧胸膜稍增厚，局部未见明确复发征象。_x0004_肝S6低密度灶较前（2008-11-06）无明显变化，考虑肝囊肿。_x0004_两肾囊肿。右上肺癌术后、化疗后复查：_x0004_右上肺缺失，右上肺野见少许散在条索影，与2009-12-24日CT片对比，未见明显变化，余两肺纹理清晰，肺内未见实质性病变。_x0004_气管及左肺、右下肺支气管分支通畅。_x0004_两肺门及纵隔未见明显肿大淋巴结。_x0004_两侧胸腔未见积液。右侧胸膜增厚，左侧胸膜无增厚、粘连。_x0004_右侧胸壁骨呈术后改变，胸椎未见异常。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。_x0004_肝S6见散在几个小圆形低密度灶，短径约3MM~6MM，边界清楚，增强扫描未见强化。与2008-11-06片对比，未见明显变化。_x0004_肝内外胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影。_x0004_肝门区正常。肝静脉、门静脉未见异常。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。_x0004_两肾实质内见散在多个类圆形低密度灶，最大者约23MM×26MM，边界清楚，增强扫描未见强化。两肾下腺未见异常。_x0004_膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。</t>
   </si>
   <si>
     <t>右上肺癌术后改变，右侧胸膜稍增厚，右侧胸腔少量包裹性积液，较2011-11-7日片好转。左肺散在病灶，考虑为慢性炎症，较前无大变化。右肺门软组织影，较前无大变化，考虑肿大淋巴结可能性大。肝囊肿。右肾囊肿。右上肺癌术后：右上肺叶缺如，右侧胸廓稍缩小，右残肺代偿良好，左肺中叶纹理增粗、紊乱，见多发斑片影及条索影，左肺下叶后段见少许条索影。气管、所示支气管及其分枝通畅，未见明显软组织肿物或受压变窄。右侧胸稍增厚，右侧胸腔少量积液，局部包裹。右肺门软组织影增多，边界欠清。左侧胸腔未见积液，左侧胸膜未见明显增厚。扫描层次中胸椎、胸壁骨未见转移征象。肝脏形态、大小正常，各叶比例在正常范围内，外形轮廓光整，肝内见多个低密度区，直径约为2MM~20MM，边界清楚，密度均匀，未见明显强化。肝内外胆管未见扩张。胆囊大小正常，壁光滑，未见异常密度。脾脏大小正常，密度均匀。腹水征阴性。胰腺大小、形态、密度未见异常。左肾未见异常密度。右肾形态、大小未见异常，其内见囊性低密度区，大小约为5MM×4MM。两侧肾下腺未见异常。腹膜后未见明显肿大淋巴结。</t>
@@ -3266,7 +3266,7 @@
     <t>左肺门数个小淋巴结</t>
   </si>
   <si>
-    <t>左肺癌术后化疗后，对比2014-03-21片：左肺中叶内段片状高密度影，考虑节段性肺不张。左肺中叶、右上肺条索影及斑片影，考虑炎症可能。右上肺近膈面小类结节，较前无大变化，考虑增殖灶。左肺门淋巴结，建议随诊。小副脾。右侧肾下腺结节，大致同前。左肺癌术后化疗后，与2014-03-21对比：左下肺叶术后缺如，左侧胸廓稍缩小，左肺中叶内段见片状高密度影，边界清，明显强化。左肺中叶、右上肺见条索影及斑片影，边界尚清，邻近胸膜粘连。右上肺近膈面见一小结节，直径约3MM，边界尚清。余肺内未见明确病灶。气管、所示支气管及其分枝通畅。左肺门见一淋巴结，边界不清，短径约9MM，不均匀强化。右肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。右侧胸膜未见增厚、粘连。肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝内未见异常密度灶。肝内外胆管无扩张，胆囊不大，壁不厚，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾不大，密度均匀。脾周见一小结节，直径约4MM，密度及强化方式与脾类似。胰腺形态、大小及密度未见异常。右侧肾下腺见一结节，直径约10MM，边界清楚，密度均匀，增强扫描均匀强化，大致同前。左侧肾下腺未见异常。两肾未见异常。肝门区及腹膜后未见肿大淋巴结。扫描范围内未见明确骨质破坏。</t>
+    <t>左肺癌术后化疗后，对比2014-03-21片：_x0004_左肺中叶内段片状高密度影，考虑节段性肺不张。_x0004_左肺中叶、右上肺条索影及斑片影，考虑炎症可能。_x0004_右上肺近膈面小类结节，较前无大变化，考虑增殖灶。_x0004_左肺门淋巴结，建议随诊。_x0004_小副脾。_x0004_右侧肾下腺结节，大致同前。左肺癌术后化疗后，与2014-03-21对比：_x0004_左下肺叶术后缺如，左侧胸廓稍缩小，左肺中叶内段见片状高密度影，边界清，明显强化。左肺中叶、右上肺见条索影及斑片影，边界尚清，邻近胸膜粘连。_x0004_右上肺近膈面见一小结节，直径约3MM，边界尚清。余肺内未见明确病灶。_x0004_气管、所示支气管及其分枝通畅。_x0004_左肺门见一淋巴结，边界不清，短径约9MM，不均匀强化。右肺门及纵隔未见明显肿大淋巴结。_x0004_两侧胸腔未见积液。右侧胸膜未见增厚、粘连。_x0004_肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝内未见异常密度灶。_x0004_肝内外胆管无扩张，胆囊不大，壁不厚，内未见异常密度灶。_x0004_肝门区结构未见异常。门静脉未见异常。_x0004_脾不大，密度均匀。脾周见一小结节，直径约4MM，密度及强化方式与脾类似。_x0004_胰腺形态、大小及密度未见异常。_x0004_右侧肾下腺见一结节，直径约10MM，边界清楚，密度均匀，增强扫描均匀强化，大致同前。左侧肾下腺未见异常。两肾未见异常。_x0004_肝门区及腹膜后未见肿大淋巴结。_x0004_扫描范围内未见明确骨质破坏。</t>
   </si>
   <si>
     <t>左下肺叶</t>
@@ -3305,7 +3305,7 @@
     <t>两肺,肝S4,S7</t>
   </si>
   <si>
-    <t>1.考虑为左肺下叶MT伴多处（左侧锁骨区、纵隔、双肺门及腹膜后）淋巴结、右侧肾下腺、左侧第7后肋和脑内多发转移可能，建议左侧第7后肋肿块穿刺病理检查明确；2.心包少量积液；双肺气肿；3.肝脏和左肾囊肿；盆腔少量积液。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行PET/CT断层显像。脑部PET/CT图像示右侧顶叶见2枚糖代谢增高的稍高密度结节，最大SUV值分别为9.5和8.7，大小分别为14.2MM×6.1MM和14.0MM×7.2MM，其边缘见片状低密度影；左侧小脑半球见可疑环形糖代谢增高灶，最大SUV值为6.8，直径为8.0MM。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧下颌窦内粘膜增厚，考虑为慢性炎症。颈部PET/CT图像示左侧锁骨区多发糖代谢异常增高的肿大淋巴结，最大SUV值为4.6，大小为8.0MM×7.3MM；右侧锁骨上见糖代谢轻度增高灶，最大SUV值约2.6。口咽、喉咽部和甲状腺无殊。胸部PET/CT图像示双肺透亮度增高；左肺下叶前段见糖代谢异常增高的结节，最大SUV值为5.6，直径为10.9MM，边缘呈浅分叶并见细毛刺；纵隔内气管周围、血管周围、主肺动脉窗、主动脉弓右、隆突上及双肺门多发糖代谢异常增高的肿大淋巴结，糖代谢较高且较大者位于隆突上，最大SUV值为6.6，大小为38.2MM×16.6MM；两侧胸腔无积液；心脏无明显增大；心包少量积液；两侧腋窝无殊。腹部PET/CT图像示右侧肾下腺见糖代谢异常增高的结节，最大SUV值为3.2，大小为14.6MM×12.1MM；腹主动脉旁多发糖代谢异常增高的肿大淋巴结，糖代谢较高且较大者最大SUV值为4.9，直径为11.7MM；胃部充盈欠佳，胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝脏表面光整，各叶比例匀称，实质内见不伴糖代谢增高的囊性灶，直径为9.6MM；肝内外胆管无扩张；左肾见直径为4.0MM、不伴糖代谢增高的囊性灶；脾脏、胆囊、胰、右肾、左肾下腺无殊；腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈欠佳；前列腺内见钙化灶；两侧精囊腺无殊；盆腔和两侧腹股沟无肿大淋巴结；盆腔少量积液。骨骼PET/CT图像示左侧第7后肋溶骨性骨质破坏伴软组织肿块形成，最大SUV值为8.5，软组织肿块大小为46.2MM×25.3MM；余所示诸骨未见明显骨质破坏吸收征象及糖代谢异常增高灶。</t>
+    <t>1.考虑为左肺下叶MT伴多处（左侧锁骨区、纵隔、双肺门及腹膜后）淋巴结、右侧肾下腺、左侧第7后肋和脑内多发转移可能，建议左侧第7后肋肿块穿刺病理检查明确；_x0004_2.心包少量积液；双肺气肿；_x0004_3.肝脏和左肾囊肿；盆腔少量积液。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行PET/CT断层显像。脑部PET/CT图像示右侧顶叶见2枚糖代谢增高的稍高密度结节，最大SUV值分别为9.5和8.7，大小分别为14.2MM×6.1MM和14.0MM×7.2MM，其边缘见片状低密度影；左侧小脑半球见可疑环形糖代谢增高灶，最大SUV值为6.8，直径为8.0MM。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧下颌窦内粘膜增厚，考虑为慢性炎症。颈部PET/CT图像示左侧锁骨区多发糖代谢异常增高的肿大淋巴结，最大SUV值为4.6，大小为8.0MM×7.3MM；右侧锁骨上见糖代谢轻度增高灶，最大SUV值约2.6。口咽、喉咽部和甲状腺无殊。胸部PET/CT图像示双肺透亮度增高；左肺下叶前段见糖代谢异常增高的结节，最大SUV值为5.6，直径为10.9MM，边缘呈浅分叶并见细毛刺；纵隔内气管周围、血管周围、主肺动脉窗、主动脉弓右、隆突上及双肺门多发糖代谢异常增高的肿大淋巴结，糖代谢较高且较大者位于隆突上，最大SUV值为6.6，大小为38.2MM×16.6MM；两侧胸腔无积液；心脏无明显增大；心包少量积液；两侧腋窝无殊。腹部PET/CT图像示右侧肾下腺见糖代谢异常增高的结节，最大SUV值为3.2，大小为14.6MM×12.1MM；腹主动脉旁多发糖代谢异常增高的肿大淋巴结，糖代谢较高且较大者最大SUV值为4.9，直径为11.7MM；胃部充盈欠佳，胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝脏表面光整，各叶比例匀称，实质内见不伴糖代谢增高的囊性灶，直径为9.6MM；肝内外胆管无扩张；左肾见直径为4.0MM、不伴糖代谢增高的囊性灶；脾脏、胆囊、胰、右肾、左肾下腺无殊；腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈欠佳；前列腺内见钙化灶；两侧精囊腺无殊；盆腔和两侧腹股沟无肿大淋巴结；盆腔少量积液。骨骼PET/CT图像示左侧第7后肋溶骨性骨质破坏伴软组织肿块形成，最大SUV值为8.5，软组织肿块大小为46.2MM×25.3MM；余所示诸骨未见明显骨质破坏吸收征象及糖代谢异常增高灶。</t>
   </si>
   <si>
     <t>（左侧锁骨区,纵隔,双肺门及腹膜后）淋巴结,右侧肾下腺,左侧第7后肋,右侧顶叶,左侧小脑半球</t>
@@ -3317,13 +3317,13 @@
     <t>左上肺癌术后化疗后，与2013-12-12片比较：左肺中叶及右肺下叶小结节，大致同前。左肺中叶散在索条影，考虑纤维增殖灶。两肺各级支气管普遍稍扩张，大致同前。左侧胸膜轻度增厚，左侧胸腔少量积液，大致同前。肝内多发囊肿。右肾小囊肿。左上肺癌术后化疗后，与2013-12-12片比较：左肺上叶术后缺失，左肺下中叶充气良好。左肺中叶边缘见少许斑片灶、条索病灶，与胸膜粘连。左肺中叶、右肺下叶见数个小结节影，直径约2MM~3MM，轮廓光整，密度均匀，较前未见明显变化。两侧各级支气管普遍管腔稍扩张。两肺门及纵隔未见明显肿大淋巴结。左侧胸腔少量积液，大致同前，左侧胸膜轻度增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝内见多发类圆形低密灶，边界清，最大者直径约13MM，边界清，增强扫描未见强化。胆囊大小正常，其内未见结石，肝内胆管、胆总管未见扩张，其内未见结石。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见小低密灶，边界清，短径约3MM，边界清，增强扫描未见强化，左肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见明显肿大淋巴结。左侧第4、5前肋见斜行线样高密度影，较前未见明显变化。</t>
   </si>
   <si>
-    <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，30，20-37，右房内径，33，19-40，右室舒张末内径，42，35-56，右室收缩末内径，26，23-35，室间隔厚度，8，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约37MMHg，。，三、，右心功能测定：，LVEF：67%；，二尖瓣血流图示E/A，&amp;gt；，1；DT：187MMs，四、组织多普勒测定：，DTI示S波峰值：9.8CM/s；E'/A'，&amp;gt；，1，五、结论：，</t>
-  </si>
-  <si>
-    <t>左乳MT肺转移综合治疗后，与2013.3.8本院PET/CT图像比较：1.未见明显肿瘤复发转移征象；2.第2骶椎良性病变可能性大；腰椎退行性变；余较前大致相仿。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像，与2013.3.8本院PET/CT图像比较。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺术后，右叶上极见低密度灶，大小约为9.7MM×8.8MM，下缘见钙化影，较前相仿。胸部PET/CT图像示左乳MT术后，左肺中叶及上叶部分切除术后；双肺少许斑片影，左肺上叶微小不规则结节影，不伴糖代谢异常增高；肺门及纵隔未见明显肿大淋巴结及糖代谢异常增高灶；两侧胸腔无积液；心脏无明显增大；右侧乳腺无明显占位；两侧腋窝未见明显肿大淋巴结及糖代谢异常增高灶。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，肝右左叶交界处见边界清楚的低密度灶，大小为12.2MM×9.2MM，余实质内未见异常占位；肝内外胆管无扩张；右肾见边界清楚的低密度灶，最大者大小为14.5MM×13.2MM，左肾无殊；脾脏不大，密度均，未见异常占位；胆囊切除术后；右侧肾下腺见钙化影；胰、左肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈，壁光滑无增厚；子宫和两附件区未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示颈胸腰骶椎顺列，生理曲度存在；第2骶椎椎体左侧见小低密度灶，不伴糖代谢异常增高；腰椎少许骨质增生，余颈、胸、腰、骶椎体及椎小关节骨质未见明显骨质破坏吸收征象及糖代谢异常增高灶。</t>
-  </si>
-  <si>
-    <t>两乳MT术后：1.考虑为右肺上叶转移；2.右肺下叶及左肺上叶慢性炎性小结节可能，请随访；3.肝脏囊肿；右肾小结石。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示两乳MT术后，术区未见明显糖代谢异常增高灶及占位；两侧腋窝内未见明显糖代谢异常增高及肿大淋巴结；双肺纹理增粗，右肺上叶后基底段见糖代谢异常增高的类圆形结节，直径约为10.3MM，最大SUV值约为4.3，平均CT值约为9.8Hu；左肺上叶外侧基底段及右肺下叶舌段近胸膜另见微小结节，直径分别约为3.1MM和1.9MM，最大SUV值分别为0.5和0.4；各级支气管腔通畅；纵隔无明显糖代谢异常增高及肿大淋巴结，两肺门影不大；两侧胸膜无增厚；两侧胸腔无积液；心脏无明显增大。腹部PET/CT图像示胃壁呈糖代谢生理性增强；肠道内显像剂生理性积聚；肝脏表面光整，各叶比例匀称，肝脏左后叶见小囊性灶，直径约为5.6MM，最大SUV值约为2.1，平均CT值约为21.3Hu；肝内外胆管无扩张；脾脏不大，密度均匀，未见明显占位；右肾见小结石；胆囊、胰、左肾及两肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚；肠道内显像剂生理性积聚；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示子宫和两附件区未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见糖代谢异常增高。平扫骨窗示诸骨未见明显骨质破坏吸收征象。</t>
+    <t>静息状态上超声心动图未见异常常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,30,20-37,右房内径,33,19-40,右室舒张末内径,42,35-56,右室收缩末内径,26,23-35,室间隔厚度,8,6-11,右室后壁厚度,8,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。,3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。,4、左房室不大，肺动脉不增宽，,连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约37MMHg,。,三、,右心功能测定：,LVEF：67%;,二尖瓣血流图示E/A,&amp;gt;,1;DT:187MMs,四、组织多普勒测定：,DTI示S波峰值:9.8CM/s;E'/A',&amp;gt;,1,五、结论：,</t>
+  </si>
+  <si>
+    <t>左乳MT肺转移综合治疗后，与2013.3.8本院PET/CT图像比较：1.未见明显肿瘤复发转移征象；_x0004_2.第2骶椎良性病变可能性大；腰椎退行性变；余较前大致相仿。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像，与2013.3.8本院PET/CT图像比较。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺术后，右叶上极见低密度灶，大小约为9.7MM×8.8MM，下缘见钙化影，较前相仿。胸部PET/CT图像示左乳MT术后，左肺中叶及上叶部分切除术后；双肺少许斑片影，左肺上叶微小不规则结节影，不伴糖代谢异常增高；肺门及纵隔未见明显肿大淋巴结及糖代谢异常增高灶；两侧胸腔无积液；心脏无明显增大；右侧乳腺无明显占位；两侧腋窝未见明显肿大淋巴结及糖代谢异常增高灶。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，肝右左叶交界处见边界清楚的低密度灶，大小为12.2MM×9.2MM，余实质内未见异常占位；肝内外胆管无扩张；右肾见边界清楚的低密度灶，最大者大小为14.5MM×13.2MM，左肾无殊；脾脏不大，密度均，未见异常占位；胆囊切除术后；右侧肾下腺见钙化影；胰、左肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈，壁光滑无增厚；子宫和两附件区未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示颈胸腰骶椎顺列，生理曲度存在；第2骶椎椎体左侧见小低密度灶，不伴糖代谢异常增高；腰椎少许骨质增生，余颈、胸、腰、骶椎体及椎小关节骨质未见明显骨质破坏吸收征象及糖代谢异常增高灶。</t>
+  </si>
+  <si>
+    <t>两乳MT术后：1.考虑为右肺上叶转移；_x0004_2.右肺下叶及左肺上叶慢性炎性小结节可能，请随访；_x0004_3.肝脏囊肿；右肾小结石。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示两乳MT术后，术区未见明显糖代谢异常增高灶及占位；两侧腋窝内未见明显糖代谢异常增高及肿大淋巴结；双肺纹理增粗，右肺上叶后基底段见糖代谢异常增高的类圆形结节，直径约为10.3MM，最大SUV值约为4.3，平均CT值约为9.8Hu；左肺上叶外侧基底段及右肺下叶舌段近胸膜另见微小结节，直径分别约为3.1MM和1.9MM，最大SUV值分别为0.5和0.4；各级支气管腔通畅；纵隔无明显糖代谢异常增高及肿大淋巴结，两肺门影不大；两侧胸膜无增厚；两侧胸腔无积液；心脏无明显增大。腹部PET/CT图像示胃壁呈糖代谢生理性增强；肠道内显像剂生理性积聚；肝脏表面光整，各叶比例匀称，肝脏左后叶见小囊性灶，直径约为5.6MM，最大SUV值约为2.1，平均CT值约为21.3Hu；肝内外胆管无扩张；脾脏不大，密度均匀，未见明显占位；右肾见小结石；胆囊、胰、左肾及两肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚；肠道内显像剂生理性积聚；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示子宫和两附件区未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见糖代谢异常增高。平扫骨窗示诸骨未见明显骨质破坏吸收征象。</t>
   </si>
   <si>
     <t>两乳</t>
@@ -3359,7 +3359,7 @@
     <t>胸骨,颈椎,胸椎,腰椎</t>
   </si>
   <si>
-    <t>鼻咽癌治疗后复查，与2014-9-24对比：左肺上叶、右肺下叶病灶，较前未见明显变化，考虑纤维增殖钙化灶可能。右肺上叶新增磨玻璃灶，炎性病变可能大。原右侧锁骨下肿大淋巴结较前明显缩小。两侧下上气管旁、血管前、主肺动脉窗、隆突上、气管后方、两肺门多发肿大淋巴结，较前增大、增多，结合病史，考虑转移可能性大。肝脏未见明显占位病变。左肾囊肿。腹主动脉旁淋巴结，建议复查。鼻咽癌治疗后复查，与2014-9-24对比：两肺纹理清晰，左上肺、右下肺见数个小结节状病灶，大小约3MM~5MM，边界清楚，部分与左侧斜裂胸膜相连，部分病灶内见钙化灶，与前片对比，病灶较前变化不明显。两肺下叶见少许条索灶及空腔影，边清。右肺上叶后基底段新增小片状磨玻璃灶，边界模糊，长径约14MM。原右侧锁骨下多发肿大淋巴结较前明显缩小，大者短径约6MM；两侧下上气管旁、血管前、主肺动脉窗、隆突上、气管后方、两肺门见多发肿大淋巴结，部分相互融合成团块状灶，边界稍模糊，增强扫描不均匀强化稍明显，轴位最大约89MM×56MM（Se7，Im29），病灶包绕、推挤胸中段食管、下腔静脉、两侧主支气管、两肺动脉干、两下肺静脉、右上肺静脉致其管腔稍变窄，胸中段食管分界不清，管壁增厚，淋巴结较前增大、增多；气管及其余支气管分支通畅。两侧胸腔未见积液。两侧胸膜无增厚、粘连。肝脏形态、各叶比例未见异常，其外形轮廓光整，未见明显异常密度灶，增强扫描未见异常强化影。肝内胆管无扩张，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见肿大淋巴结。门静脉未见充盈缺损影。脾不大，密度均匀。胰腺大小、形态未见异常，密度均匀。两侧肾盂未见结石，左肾见边界清晰的类圆形低密度灶，增强扫描各期均无明显强化，直径约8MM；余两肾实质未见异常。两肾下腺未见异常。腹主动脉旁见数枚淋巴结，较大者短径约8MM。左侧第5~7肋、右侧第4、5肋骨见模糊骨折线及周围骨质密度增高灶，边界模糊；余扫描范围内骨质未见骨质破坏征象。</t>
+    <t>鼻咽癌治疗后复查，与2014-9-24对比：_x0004_左肺上叶、右肺下叶病灶，较前未见明显变化，考虑纤维增殖钙化灶可能。_x0004_右肺上叶新增磨玻璃灶，炎性病变可能大。_x0004_原右侧锁骨下肿大淋巴结较前明显缩小。_x0004_两侧下上气管旁、血管前、主肺动脉窗、隆突上、气管后方、两肺门多发肿大淋巴结，较前增大、增多，结合病史，考虑转移可能性大。_x0004_肝脏未见明显占位病变。左肾囊肿。_x0004_腹主动脉旁淋巴结，建议复查。鼻咽癌治疗后复查，与2014-9-24对比：_x0004_两肺纹理清晰，左上肺、右下肺见数个小结节状病灶，大小约3MM~5MM，边界清楚，部分与左侧斜裂胸膜相连，部分病灶内见钙化灶，与前片对比，病灶较前变化不明显。两肺下叶见少许条索灶及空腔影，边清。右肺上叶后基底段新增小片状磨玻璃灶，边界模糊，长径约14MM。_x0004_原右侧锁骨下多发肿大淋巴结较前明显缩小，大者短径约6MM；两侧下上气管旁、血管前、主肺动脉窗、隆突上、气管后方、两肺门见多发肿大淋巴结，部分相互融合成团块状灶，边界稍模糊，增强扫描不均匀强化稍明显，轴位最大约89MM×56MM（Se7，Im29），病灶包绕、推挤胸中段食管、下腔静脉、两侧主支气管、两肺动脉干、两下肺静脉、右上肺静脉致其管腔稍变窄，胸中段食管分界不清，管壁增厚，淋巴结较前增大、增多；_x0004_气管及其余支气管分支通畅。两侧胸腔未见积液。两侧胸膜无增厚、粘连。_x0004_肝脏形态、各叶比例未见异常，其外形轮廓光整，未见明显异常密度灶，增强扫描未见异常强化影。肝内胆管无扩张，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见肿大淋巴结。门静脉未见充盈缺损影。脾不大，密度均匀。胰腺大小、形态未见异常，密度均匀。两侧肾盂未见结石，左肾见边界清晰的类圆形低密度灶，增强扫描各期均无明显强化，直径约8MM；余两肾实质未见异常。两肾下腺未见异常。腹主动脉旁见数枚淋巴结，较大者短径约8MM。_x0004_左侧第5~7肋、右侧第4、5肋骨见模糊骨折线及周围骨质密度增高灶，边界模糊；余扫描范围内骨质未见骨质破坏征象。</t>
   </si>
   <si>
     <t>两侧下上气管旁,血管前,主肺动脉窗,隆突上,气管后方,两肺门多发肿大淋巴结</t>
@@ -3368,7 +3368,7 @@
     <t>肝左叶结节，较前变化不大右肾囊肿右侧甲状腺结节，性质待定左侧甲状腺结节，观察肝形态、大小尚可，回声欠均匀，肝左前叶可见低回声结节，范围约1.7CM×1.3CM，边界欠清。胆囊可见强回声隆起，0.4CM。胆系不扩张。右肾可见无回声结节，约0.9CM。胰腺、左肾未见明显占位。脾不大。腹主动脉周围未见明显肿大淋巴结。右侧甲状腺肿大，回声欠均，内可见囊实性结节，呈多结节融合状，范围4.1CM×2.6CM×2.5CM，边界欠清，内可见多发点状强回声及较丰富血流信号。左侧甲状腺形态大小尚可，回声欠均，0.5CM×0.6CM，边界尚清。两颈部未见异常肿大淋巴结。两侧颈内静脉管壁平整，管腔内清晰，未见明显栓子，CDFI：血流充盈良好。</t>
   </si>
   <si>
-    <t>心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号右室舒张功能减低，收缩功能正常心超声检测值：LA   32MM       AO     25MM        MV E 0.73MM/s     EF 69%LV   45MM       IVS     9MM           A 0.91MM/s     FS 39% RA   32MM       LVPW   10MMRV   21MM       PA     21MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图未见异常。</t>
+    <t>心脏结构及运动未见异常_x0004__x0004_各房室腔及大血管未探及异常血流信号_x0004__x0004_右室舒张功能减低，收缩功能正常心超声检测值：_x0004__x0004_LA   32MMAO     25MMV E 0.73m/s     EF 69%_x0004__x0004_LV   45MMIVS     9MMA 0.91m/s     FS 39% _x0004__x0004_RA   32MMLVPW   10MM_x0004__x0004_RV   21MMPA     21MM_x0004__x0004__x0004__x0004_二维及Ｍ型超声心动图特征：_x0004__x0004_升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；_x0004__x0004_各房室腔径正常。_x0004__x0004_室壁厚度及运动正常。房、室间隔连续性完好。_x0004__x0004_各组瓣膜形态、结构及运动正常。_x0004__x0004_心包及心包腔未见异常。_x0004__x0004_彩色及频谱多普勒超声心动图未见异常。</t>
   </si>
   <si>
     <t>肝内多发病变，部分为肝血管瘤可能性大，部分结合病史转移瘤可能大，请结合临床对比原片。胆囊结石；副脾。左肾错构瘤。多个胸椎椎体高密度影，转移可能大。肝脏饱满，表面光滑，肝脏密度普遍不均匀性减低，约为12HU，其内可见多发大小不等的结节影，边缘模糊不清，最大者位于左后叶，直径约5.68CM，增强扫描早期可见病灶边缘呈结节状强化，其后强化向中央扩展，延迟期病灶进一步强化；肝内另见多个大小不等的低密度灶，较大者位于肝左叶，增强后不均匀强化或环形强化。胆囊不大，壁不厚，胆囊底部见一环形高密度影。胰腺、脾脏形态正常，脾脏前方可见一小类圆形软组织密度影，与脾脏强化相似。左肾前外侧皮质见一混杂密度影突出于肾皮质表面，最大径约3.72CM×4.74CM，基底部肾皮质结构紊乱，病变大部分为脂肪密度影，内部可见不规则软组织密度影，增强扫描病变实质部分明显强化。多个胸椎椎体内可见斑片状高密度影。</t>
@@ -3395,7 +3395,7 @@
     <t>右乳MT术后化疗后，肝右左叶交界处病灶，较2013-8-10片略增大，肝内多发新增小病灶，肝内胆管扩张较前明显；左肾下腺结节，双侧少量胸水，基本同前；两肾小囊肿。右乳MT术后化疗后，肝右左叶交界处见不规则异常信号灶，大小约3.7MM×7.3MM，T1WI为低信号，T2WI为略高信号，增强后动脉期不均匀强化，门脉期及延迟期持续强化，肝右左叶肝内胆管扩张，右叶为著，病灶与胆囊分界不清，另见肝右左叶见多发小结节状异常强化信号灶，最大者约1.3CM，肝内血管尚可。脾脏饱满，信号尚均。胰腺无殊。两肾见小囊性灶。左肾下腺见一结节异常信号灶，大小约1CM×1.2CM，不均匀强化。后腹膜未见肿大淋巴結，腹腔未见明确积液。双侧胸腔见少量弧形液性信号灶。</t>
   </si>
   <si>
-    <t>右侧卵巢囊性占位，考虑卵巢囊肿声像，建议阴道超声复查肝脏、胆囊、脾脏、胰腺、两肾、膀胱未见明显占位病变声像。两侧输尿管未见明确扩张。子宫、左侧附件区未见明显占位病变声像。肝脏大小、形态正常，包膜光滑，实质回声均匀，血管走行清晰、自然，肝内胆管不扩张，门静脉内径9MM，肝内未见明显肿物回声。CDFI：肝动脉、门静脉血流通畅，为向肝血流信号，充盈良好，肝内未见明确异常血流信号。门静脉最大血流速度约15CM/s。胆囊大小形态正常，囊壁不厚，胆囊内未见明显异常回声。脾脏大小形态正常，包膜光滑，实质回声均匀，未见明显异常回声。胰腺大小形态正常，实质回声均匀，未见明显异常回声。两肾大小形态正常，实质回声均匀，未见明显异常回声。CDFI：两肾血流呈珊瑚状，未见明确异常血流信号。两侧输尿管未见明确扩张。膀胱充盈良好，膀胱壁光滑，不厚，膀胱腔内未见明确肿物回声。子宫大小、形态正常，大小约38MM×35MM×27MM，包膜光滑，宫壁肌层回声均匀，宫腔线清晰，居中，内膜厚约2MM。两侧卵巢可探及，右侧卵巢内可见一囊性占位，大小约11MM×11MM，边界清，后方回声增强CDFI：右侧囊性占位周边及内部未见明显血流信号。</t>
+    <t>右侧卵巢囊性占位，考虑卵巢囊肿声像，建议阴道超声复查_x0004__x0004_肝脏、胆囊、脾脏、胰腺、两肾、膀胱未见明显占位病变声像。_x0004__x0004_两侧输尿管未见明确扩张。_x0004__x0004_子宫、左侧附件区未见明显占位病变声像。肝脏大小、形态正常，包膜光滑，实质回声均匀，血管走行清晰、自然，肝内胆管不扩张，门静脉内径9MM，肝内未见明显肿物回声。_x0004__x0004_CDFI：肝动脉、门静脉血流通畅，为向肝血流信号，充盈良好，肝内未见明确异常血流信号。门静脉最大血流速度约15CM/s。_x0004__x0004_胆囊大小形态正常，囊壁不厚，胆囊内未见明显异常回声。_x0004__x0004_脾脏大小形态正常，包膜光滑，实质回声均匀，未见明显异常回声。_x0004__x0004_胰腺大小形态正常，实质回声均匀，未见明显异常回声。_x0004__x0004_两肾大小形态正常，实质回声均匀，未见明显异常回声。_x0004__x0004_CDFI：两肾血流呈珊瑚状，未见明确异常血流信号。_x0004__x0004_两侧输尿管未见明确扩张。_x0004__x0004_膀胱充盈良好，膀胱壁光滑，不厚，膀胱腔内未见明确肿物回声。_x0004__x0004_子宫大小、形态正常，大小约38MM×35MM×27MM，包膜光滑，宫壁肌层回声均匀，宫腔线清晰，居中，内膜厚约2MM。_x0004__x0004_两侧卵巢可探及，右侧卵巢内可见一囊性占位，大小约11MM×11MM,边界清，后方回声增强_x0004__x0004_CDFI:右侧囊性占位周边及内部未见明显血流信号。_x0004__x0004_</t>
   </si>
   <si>
     <t>None与2015-03-14胸部CT比较：1、右肺术后，支气管残端周少许软组织密度灶同前（IM29）；两肺多发转移结节部分较前稍增大，较大原约20MM×16MM(IM33)，现约21MM×17MM（IM37）。2、左肺门淋巴结同前，约14MM×11MM（IM25）；纵隔4R淋巴结较前饱满，原约16MM×9MM（IM21），现约21MM×10MM（IM23）。余纵隔及两锁骨下未见肿大淋巴结。3、局部右侧胸膜较前增厚，两侧未见胸水征象。4、扫及胸廓诸骨未见明确破坏征象。5、扫及两侧肾下腺见不规则软组织占位，左侧较大约57MM×34MM（IM58），右侧较大约16MM×10MM（IM55），考虑转移。</t>
@@ -3407,7 +3407,7 @@
     <t>甲状腺弥漫性病变-可疑桥本氏甲状腺炎；右侧乳腺小叶增生；右乳低回声区-考虑乳腺病；右侧腋窝淋巴结；左侧腋静脉旁低回声区-考虑淋巴结；肝左叶钙化灶；肝囊肿；左肾结石甲状腺左叶50MM×12MM×12MM，甲状腺右叶49MM×11MM×10MM，峡部2MM。甲状腺内部回声稍增粗不均匀，甲状腺内血流稍丰富。颈部左侧甲状腺下动脉血流通畅，PSV0.14MM/s，RI0.53。颈部右侧甲状腺下动脉血流通畅，PSV0.20MM/s，RI0.57。左乳已切除，再造术后，未见明显肿块回声。右侧乳腺导管增多，10点处见6MM×4MM低回声区，CDFI未见明显彩色血流。左侧腋静脉旁见4MM×3MM低回声区，右侧腋窝见10MM×5MM高回声团块，CDFI未见明显彩色血流。肝肋上斜切107MM/（－），剑上纵切60MM/2指，肝区回声较密尚均，左叶膈顶见5MM强回声团块，右外叶见24MM×18MM无回声区，门脉主干内径10MM。脾肋间切38MM/（-）。胆囊68MM×26MM，胆总管4MM，胰头16MM，胰体12MM，胰尾15MM，左肾109MM×49MM×46MM，内见3MM强回声团块，肾盂分离（－），右肾106MM×42MM×47MM，肾盂分离（－）。两侧输尿管未见明显扩张。CDFI肝胆胰肾血流正常。</t>
   </si>
   <si>
-    <t>宫颈MT综合治疗后病例：1.右侧盆壁淋巴结转移；2.甲状腺弥漫性病变，请结合彩超检查；两侧颈部淋巴结慢性炎症，请随访；3.左乳头水平内侧象限纤维腺瘤可能，建议进一步检查除外MT；左乳钙化灶；右肺慢性炎性小结节；左肺慢性炎症及陈旧灶；4.肝脏囊肿；右肾囊肿；左肾结石；右侧腹股沟疝。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET/CT图像示两颈血管旁多发伴糖代谢增高的淋巴结，糖代谢最高者位于右颈血管旁，最大SUV值约为6.3，大小约为12.8MM×8.0MM；甲状腺弥漫性肿大，密度欠均，不伴糖代谢增高；口咽、喉咽部无殊。胸部PET/CT图像示左乳头水平内侧象限见糖代谢异常增高的软组织结节，最大SUV值约为8.0，大小约为20.3MM×17.3MM，乳头深部见大小约7.5MM×5.0MM可疑结节，外下象限小钙化灶；右肺下叶尖后段及右肺上叶外侧基底段各见一直径小于4.0MM、不伴糖代谢增高的微小结节；左肺下叶尖段见钙化小结节；各级支气管腔通畅；纵隔、两肺门及腋窝无明显糖代谢异常增高及肿大淋巴结；两侧胸膜无增厚；两侧胸腔无积液；心脏无明显增大；右侧乳腺无明显糖代谢异常增高及占位。腹部PET图像示胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，肝左后叶上段见小囊状灶，直径约为5.0MM；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；左肾见多发小结节状致密影；右肾见小类圆形囊性灶，直径约为5.5MM；胆囊、胰、两肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET/CT图像示子宫及两附件术后缺如；右侧盆壁见伴糖代谢异常增高的肿大淋巴结，最大SUV值约为10.1，大小约为20.8MM×14.6MM；右腹股沟区见腹腔内容物疝入；膀胱内显像剂生理性积聚；肠道呈线型生理性糖代谢增强；两侧腹股沟处未见明显糖代谢异常增高及肿大淋巴结；盆腔无积液。骨骼PET图像示骶尾骨弥漫性糖代谢减低，考虑为放疗后改变；其余骨骼未见异常糖代谢增强。CT定位片见上胸椎、腰椎侧弯；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质增生，多个腰椎间盘见真空征，均考虑为退行性变。左侧背部及臀部部分肌肉糖代谢增高，考虑为生理性表现。</t>
+    <t>宫颈MT综合治疗后病例：1.右侧盆壁淋巴结转移；_x0004_2.甲状腺弥漫性病变，请结合彩超检查；两侧颈部淋巴结慢性炎症，请随访；_x0004_3.左乳头水平内侧象限纤维腺瘤可能，建议进一步检查除外MT；左乳钙化灶；右肺慢性炎性小结节；左肺慢性炎症及陈旧灶；_x0004_4.肝脏囊肿；右肾囊肿；左肾结石；右侧腹股沟疝。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET/CT图像示两颈血管旁多发伴糖代谢增高的淋巴结，糖代谢最高者位于右颈血管旁，最大SUV值约为6.3，大小约为12.8MM×8.0MM；甲状腺弥漫性肿大，密度欠均，不伴糖代谢增高；口咽、喉咽部无殊。胸部PET/CT图像示左乳头水平内侧象限见糖代谢异常增高的软组织结节，最大SUV值约为8.0，大小约为20.3MM×17.3MM，乳头深部见大小约7.5MM×5.0MM可疑结节，外下象限小钙化灶；右肺下叶尖后段及右肺上叶外侧基底段各见一直径小于4.0MM、不伴糖代谢增高的微小结节；左肺下叶尖段见钙化小结节；各级支气管腔通畅；纵隔、两肺门及腋窝无明显糖代谢异常增高及肿大淋巴结；两侧胸膜无增厚；两侧胸腔无积液；心脏无明显增大；右侧乳腺无明显糖代谢异常增高及占位。腹部PET图像示胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，肝左后叶上段见小囊状灶，直径约为5.0MM；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；左肾见多发小结节状致密影；右肾见小类圆形囊性灶，直径约为5.5MM；胆囊、胰、两肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET/CT图像示子宫及两附件术后缺如；右侧盆壁见伴糖代谢异常增高的肿大淋巴结，最大SUV值约为10.1，大小约为20.8MM×14.6MM；右腹股沟区见腹腔内容物疝入；膀胱内显像剂生理性积聚；肠道呈线型生理性糖代谢增强；两侧腹股沟处未见明显糖代谢异常增高及肿大淋巴结；盆腔无积液。骨骼PET图像示骶尾骨弥漫性糖代谢减低，考虑为放疗后改变；其余骨骼未见异常糖代谢增强。CT定位片见上胸椎、腰椎侧弯；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质增生，多个腰椎间盘见真空征，均考虑为退行性变。左侧背部及臀部部分肌肉糖代谢增高，考虑为生理性表现。</t>
   </si>
   <si>
     <t>宫颈MT</t>
@@ -3440,7 +3440,7 @@
     <t>左下肺,左中肺及上肺,肝S4,S7</t>
   </si>
   <si>
-    <t>心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号心功能正常心超声检测值：LA   29MM       AO     27MM        MV E 0.60MM/s     EF 71%LV   34MM       IVS    11MM           A 0.52MM/s     FS 39% RA   30MM       LVPW   9MMRV   18MM       PA     18MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图未见异常。</t>
+    <t>心脏结构及运动未见异常_x0004__x0004_各房室腔及大血管未探及异常血流信号_x0004__x0004_心功能正常心超声检测值：_x0004__x0004_LA   29MMAO     27MMV E 0.60m/s     EF 71%_x0004__x0004_LV   34MMIVS    11MMA 0.52m/s     FS 39% _x0004__x0004_RA   30MMLVPW   9MM_x0004__x0004_RV   18MMPA     18MM_x0004__x0004__x0004__x0004_二维及Ｍ型超声心动图特征：_x0004__x0004_升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；_x0004__x0004_各房室腔径正常。_x0004__x0004_室壁厚度及运动正常。房、室间隔连续性完好。_x0004__x0004_各组瓣膜形态、结构及运动正常。_x0004__x0004_心包及心包腔未见异常。_x0004__x0004_彩色及频谱多普勒超声心动图未见异常。</t>
   </si>
   <si>
     <t>肝囊肿；胆囊息肉；副脾；两侧颈部见淋巴结肝肋上斜切110MM/（－），剑上纵切57MM/2指，肝区回声较密尚均，左后叶膈顶肝左静脉根部旁见9MM×7MM无回声区，门脉主干内径10MM。脾肋间切30MM/（－），上极见11MM×9MM类脾回声团块。胆囊60MM×22MM，壁稍毛糙，壁下见数枚中等稍高回声，最大3MM，胆总管4MM。胰头12MM，胰体9MM，胰尾12MM。左肾94MM×43MM×41MM，肾盂分离（－），右肾100MM×44MM×45MM，肾盂分离（－）。两侧输尿管未见明显扩张。两侧肾下腺区未见明显肿块回声。CDFI肝胆胰肾血流正常。两侧颌上、两侧颈血管旁见数枚低回声区，左侧最大10MM×4MM，右侧最大13MM×5MM，两侧锁骨下未见明显肿块回声。CDFI未见异常血流。</t>
@@ -3458,7 +3458,7 @@
     <t>第7、8胸椎体、第2腰椎,左侧第3后肋</t>
   </si>
   <si>
-    <t>None右肺癌化疗后，与2017-10-20片对比：右上肺前内基底段小片状软组织灶，大小约12MM×8MM，较前稍缩小。右上肺近肺门区软组织灶，大小约23MM×11MM，较前增大。右肺下叶及上叶小结节（Se4-Im74、102、135），大者直径约3MM，较前稍缩小，转移可能。右下肺小条索灶，较前变化不明显，建议复查。左肺下叶后段磨玻璃影，直径约4MM，较前稍缩小，建议随诊。左侧锁骨下区、纵隔多发小淋巴结，大者短径约5MM，较前变化不大。右肺门小淋巴结，短径约6MM，较前变化不大。心包积液，大致同前。肝内多发小囊肿，大者直径约9MM，大致同前。副脾。</t>
+    <t>None右肺癌化疗后，与2017-10-20片对比：_x0004_右上肺前内基底段小片状软组织灶，大小约12MM×8MM，较前稍缩小。_x0004_右上肺近肺门区软组织灶，大小约23MM×11MM，较前增大。_x0004_右肺下叶及上叶小结节（Se4-Im74、102、135），大者直径约3MM，较前稍缩小，转移可能。_x0004_右下肺小条索灶，较前变化不明显，建议复查。_x0004_左肺下叶后段磨玻璃影，直径约4MM，较前稍缩小，建议随诊。_x0004_左侧锁骨下区、纵隔多发小淋巴结，大者短径约5MM，较前变化不大。_x0004_右肺门小淋巴结，短径约6MM，较前变化不大。_x0004_心包积液，大致同前。_x0004_肝内多发小囊肿，大者直径约9MM，大致同前。_x0004_副脾。_x0004_</t>
   </si>
   <si>
     <t>右肺下叶及上叶</t>
@@ -3497,7 +3497,7 @@
     <t>肝,胸腰椎</t>
   </si>
   <si>
-    <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，32，20-37，右房内径，35，19-40，右室舒张末内径，44，35-56，右室收缩末内径，28，23-35，室间隔厚度，10，6-11，右室后壁厚度，9，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒测及轻微主动脉瓣反流。，4、左房室不大，肺动脉不增宽，肺动脉血流图未见异常。，三、，右心功能测定：，FS：38%；LVEF：68%；二尖瓣血流图示E/A，&amp;lt；，1；DT：165MMs，四、组织多普勒测定：，DTI示S波峰值：9.07CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
+    <t>静息状态上超声心动图未见异常常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,32,20-37,右房内径,35,19-40,右室舒张末内径,44,35-56,右室收缩末内径,28,23-35,室间隔厚度,10,6-11,右室后壁厚度,9,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。,3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒测及轻微主动脉瓣反流。,4、左房室不大，肺动脉不增宽，肺动脉血流图未见异常。,三、,右心功能测定：,FS:38%;LVEF:68%；二尖瓣血流图示E/A,&amp;lt;,1;DT:165MMs,四、组织多普勒测定：,DTI示S波峰值:9.07CM/s;E'/A',&amp;lt;,1,五、结论：,</t>
   </si>
   <si>
     <t>右上肺癌术后化疗后，与2014-02-27片对比：左残肺、右肺叶类结节灶，考虑增殖灶，较前未见明显变化。左侧少量胸腔积液，部分为叶间积液，较前减少。两侧锁骨下区、纵隔及两肺门小淋巴结。肝囊肿。两肾囊肿。右上肺癌术后化疗后，与2014-02-27片对比：左肺上叶术后缺失，左肺上叶支气管中断，断端见金属密影，未见明确肿物。左残肺、右肺叶见散在类结节灶，直径约3~5MM，部分边界欠清，密度欠均匀，较前未见明显变化。气管及余支气管分支未见明显狭窄及异常扩张。两侧锁骨下区、左侧气管食管沟、左下气管旁、主肺动脉窗、两侧肺门见数个小淋巴结，短径约3~6MM，边界清，密度均匀。左侧胸膜腔及叶间裂见少量液性密度区，较前减少。右侧胸腔未见积液。胸膜未见增厚。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝内见数个类圆形低密度灶，直径约2~4MM，边界清，密度均匀，未见强化。肝内胆管未见扩张，其内未见结石。胆囊大小未见异常，其内未见结石。胆总管未见扩张，其内未见结石。肝门区结构未见异常。门静脉未见充盈缺损。脾大小未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾见多发小囊性低密度病变，较大者短径约10MM，边界清，增强未见强化。右侧肾下腺见结节状稍增粗。左肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围内骨质未见破坏征象。</t>
@@ -3521,7 +3521,7 @@
     <t>胸7、8、12、腰2、左侧第3后肋</t>
   </si>
   <si>
-    <t>肺癌放化疗后复查，对比2016.07.05片：左肺门区肿物并左肺上叶节段性不张，范围较前稍增大。左肺下叶尖段、后段及左肺中叶、上叶、右肺上叶舌段多发斑片状灶，范围较前缩小，考虑炎症。纵隔、左肺门淋巴结，较前未见明显变化。两侧半卵圆中心少许缺血灶。副鼻窦炎。肺癌化疗后复查，对比2016.07.05片：左肺体积缩小，气管、纵隔向左侧偏移，左侧中间段支气管及左中肺、左上肺支气管分支狭窄，左肺门区见不规则软组织影，与不张的左肺组织及左肺门、纵隔淋巴结相互融合，分界不清，范围难测量，病灶信号不均匀，增强扫描呈不均匀较明显强化。左肺下叶尖段、后段及左肺中叶、上叶、右肺上叶舌段见多发斑片状灶，边界欠清；范围较前减小。左下上气管旁、主肺动脉窗、隆突上、左肺门见多个淋巴结，其中左肺门淋巴结与左上肺门区病灶相互融合，较前未见明显变化。两侧胸腔未见积液，左上胸膜稍增厚，右侧胸膜未见增厚、粘连。两侧半卵圆中心见少许斑片状异常信号灶，边界清晰，较大者4MM×6MM，T1WI呈稍低信号，T2WI、FLAIR呈稍高信号，增强扫描未见强化。余大脑各叶、小脑及脑干形态正常，信号正常，增强后亦未见异常信号区；各脑室及脑池大小、形态未见异常；大脑中线结构未见移位；颅骨质未见破坏。两侧下颌窦、筛窦粘膜增厚，蝶窦、乳突充气良好，骨壁完整。</t>
+    <t>肺癌放化疗后复查，对比2016.07.05片：_x0004_左肺门区肿物并左肺上叶节段性不张，范围较前稍增大。_x0004_左肺下叶尖段、后段及左肺中叶、上叶、右肺上叶舌段多发斑片状灶，范围较前缩小，考虑炎症。_x0004_纵隔、左肺门淋巴结，较前未见明显变化。_x0004_两侧半卵圆中心少许缺血灶。_x0004_副鼻窦炎。肺癌化疗后复查，对比2016.07.05片：_x0004_左肺体积缩小，气管、纵隔向左侧偏移，左侧中间段支气管及左中肺、左上肺支气管分支狭窄，左肺门区见不规则软组织影，与不张的左肺组织及左肺门、纵隔淋巴结相互融合，分界不清，范围难测量，病灶信号不均匀，增强扫描呈不均匀较明显强化。_x0004_左肺下叶尖段、后段及左肺中叶、上叶、右肺上叶舌段见多发斑片状灶，边界欠清；范围较前减小。_x0004_左下上气管旁、主肺动脉窗、隆突上、左肺门见多个淋巴结，其中左肺门淋巴结与左上肺门区病灶相互融合，较前未见明显变化。_x0004_两侧胸腔未见积液，左上胸膜稍增厚，右侧胸膜未见增厚、粘连。_x0004_两侧半卵圆中心见少许斑片状异常信号灶，边界清晰，较大者4MM×6MM，T1WI呈稍低信号，T2WI、FLAIR呈稍高信号，增强扫描未见强化。余大脑各叶、小脑及脑干形态正常，信号正常，增强后亦未见异常信号区；各脑室及脑池大小、形态未见异常；大脑中线结构未见移位；_x0004_颅骨质未见破坏。_x0004_两侧下颌窦、筛窦粘膜增厚，蝶窦、乳突充气良好，骨壁完整。</t>
   </si>
   <si>
     <t>心内结构及血流未见异常静息状态上右室整体收缩功能正常二维测值（mm）：主动脉内径：21-30-21右房内径：36升主动脉：30室间隔厚度：8右室舒末内径：42右室缩末内径：26右室后壁厚度：8左室内径：17肺动脉内径：21Doppler测值：各瓣口前向血流峰速度（m/s）二尖瓣：E峰1.0A峰0.8三尖瓣：0.8主动脉瓣：1.4肺动脉瓣：1.0心功能测值：右室舒末容积EDV：78(ml)右室缩末容积ESV：30(ml)每搏量SV：48(ml)射血分数EF：61%各心腔内径在正常范围，右室各壁向心运动良好，未见节段性运动异常。各瓣膜开放良好，各瓣口前向血流速度在正常范围，二、三尖瓣探及微量返流。心包腔未见液性暗区。</t>
@@ -3548,10 +3548,10 @@
     <t>胰腺,两侧锁骨下窝,纵隔,两肺门多发淋巴结,胰腺</t>
   </si>
   <si>
-    <t>肾盂癌术后、化疗后复查，术区未见明确肿瘤复发征象。脂肪肝。左肺下叶尖段条索、类结节灶，右肺上叶后基底段小结节，大致同前，考虑增殖灶可能性大。右锁骨下窝、纵隔小淋巴结，较前未见明显变化。左心房内充盈缺损影，较前未见明显变化。甲状腺两叶病灶，考虑结节性甲状腺肿。腰1椎体压缩性骨折，大致同前。肾盂癌术后、化疗后，与2016-06-29片对比：右肾术后缺失，局部未见明确软组织肿物，周围脂肪间隙清晰。左肾及两侧肾下腺未见异常。肝脏形态、比例正常，轮廓光整，肝实质密度普遍减低，未见明显异常强化。肝内外胆管无扩张，胆囊不大，胆总管未见扩张，未见结石影。肝门区及门静脉未见明显异常。脾脏及胰腺大小、形态、密度未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。子宫大小、形态未见明显异常，子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。两侧腹股沟区、髂血管旁未见肿大淋巴结。两肺纹理清晰，左肺下叶尖段见条索、类结节影，大者直径约3MM，边界清楚，边缘不规整，与邻近胸膜牵拉粘连，大致同前。右肺上叶后基底段见一小结节，直径约为3MM，边界清楚，边缘规整，较前相仿。气管及支气管分支通畅。右锁骨下窝、左上气管旁、主动脉旁见数个小淋巴结，最大约6MM×8MM，边界清楚，较前未见明显变化。两侧胸腔未见积液。两侧胸膜未见增厚、粘连。左心房充盈欠佳，内见少许异常密度影，平扫呈稍高密度，未见明显强化，较前未见明显变化。扫描层面内甲状腺两叶见多个结节状低密度病灶，最大者约为8MM×11MM，增强后轻度强化或强化不明显，较前相仿。腰1椎体变扁呈楔形，椎体内见散在斑点斑块状致密影。余骨质未见明确破坏征象。</t>
-  </si>
-  <si>
-    <t>右肺癌化疗后，与2017-7-6片对比：右上肺前基底段病变较前变化不大。右上肺近肺门区软组织灶较前增大；其周围多发结节，考虑转移，较前增大。右肺下叶及左肺上叶小结节，较前稍增大，考虑转移。右下肺小条索灶较前变化不明显，建议复查。左肺下叶后段磨玻璃影，大致同前，建议随诊。左侧锁骨下区、纵隔多发淋巴结，较前变化不大。右肺门淋巴结较前变化不大。肝囊肿。副脾。右肺癌化疗后，与2017-7-6片对比：右肺上叶前基底段见不规则结节状、片状病灶，边界不清，最大层面大小约12MM×9MM，边缘呈分叶状，增强扫描不均匀强化，紧贴斜裂胸膜，较前变化不明显；右肺上叶近肺门区见梭状软组织灶，边界稍模糊，大小约36MM×20MM，病灶累及右侧斜裂胸膜，增强扫描不均匀强化，范围较前增大，周围见多个小结节；右上肺见少许斑片状稍高密度影，边界不清，范围较前增大。右下肺（se7-202、154）见小结节，边界清，直径约8MM，较前稍增大。右下肺另见小条索灶，边界模糊，较前变化不明显。左肺下叶后段见一磨玻璃影，直径约5MM，大致同前。左肺上叶内基底段见结节，直径约4MM，较前稍增大。右肺上叶前内基底段支气管变窄，气管及其余支气管分支通畅。右肺门见一淋巴结，边界稍模糊，短径约6MM；左侧锁骨下区、两下上气管旁、血管前、主动脉弓旁、主肺动脉窗、隆突上见多发淋巴结，部分边界不清，大者短径约5MM，轻度强化，同前相仿。两侧胸腔未见积液，左侧胸膜未见明显增厚。心包未见明显积液。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内见多个低密度灶，边界清，大者直径约9MM，未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉未见异常。脾大小正常，密度均匀，脾脏边缘见多个结节，最大短径约8MM，密度及强化方式与脾脏类似。胰腺大小、形态正常，密度均匀。两肾及两肾下腺未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。扫描范围未见骨质破坏征象。</t>
+    <t>肾盂癌术后、化疗后复查，术区未见明确肿瘤复发征象。_x0004_脂肪肝。_x0004_左肺下叶尖段条索、类结节灶，右肺上叶后基底段小结节，大致同前，考虑增殖灶可能性大。_x0004_右锁骨下窝、纵隔小淋巴结，较前未见明显变化。_x0004_左心房内充盈缺损影，较前未见明显变化。_x0004_甲状腺两叶病灶，考虑结节性甲状腺肿。_x0004_腰1椎体压缩性骨折，大致同前。肾盂癌术后、化疗后，与2016-06-29片对比：_x0004_右肾术后缺失，局部未见明确软组织肿物，周围脂肪间隙清晰。_x0004_左肾及两侧肾下腺未见异常。_x0004_肝脏形态、比例正常，轮廓光整，肝实质密度普遍减低，未见明显异常强化。肝内外胆管无扩张，胆囊不大，胆总管未见扩张，未见结石影。肝门区及门静脉未见明显异常。脾脏及胰腺大小、形态、密度未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。_x0004_膀胱充盈良好，境界清楚。子宫大小、形态未见明显异常，子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。_x0004_两侧腹股沟区、髂血管旁未见肿大淋巴结。_x0004_两肺纹理清晰，左肺下叶尖段见条索、类结节影，大者直径约3MM，边界清楚，边缘不规整，与邻近胸膜牵拉粘连，大致同前。右肺上叶后基底段见一小结节，直径约为3MM，边界清楚，边缘规整，较前相仿。_x0004_气管及支气管分支通畅。右锁骨下窝、左上气管旁、主动脉旁见数个小淋巴结，最大约6MM×8MM，边界清楚，较前未见明显变化。两侧胸腔未见积液。两侧胸膜未见增厚、粘连。左心房充盈欠佳，内见少许异常密度影，平扫呈稍高密度，未见明显强化，较前未见明显变化。_x0004_扫描层面内甲状腺两叶见多个结节状低密度病灶，最大者约为8MM×11MM，增强后轻度强化或强化不明显，较前相仿。_x0004_腰1椎体变扁呈楔形，椎体内见散在斑点斑块状致密影。余骨质未见明确破坏征象。</t>
+  </si>
+  <si>
+    <t>右肺癌化疗后，与2017-7-6片对比：右上肺前基底段病变较前变化不大。_x0004_右上肺近肺门区软组织灶较前增大；其周围多发结节，考虑转移，较前增大。_x0004_右肺下叶及左肺上叶小结节，较前稍增大，考虑转移。_x0004_右下肺小条索灶较前变化不明显，建议复查。_x0004_左肺下叶后段磨玻璃影，大致同前，建议随诊。_x0004_左侧锁骨下区、纵隔多发淋巴结，较前变化不大。_x0004_右肺门淋巴结较前变化不大。_x0004_肝囊肿。副脾。右肺癌化疗后，与2017-7-6片对比：_x0004_右肺上叶前基底段见不规则结节状、片状病灶，边界不清，最大层面大小约12MM×9MM，边缘呈分叶状，增强扫描不均匀强化，紧贴斜裂胸膜，较前变化不明显；右肺上叶近肺门区见梭状软组织灶，边界稍模糊，大小约36MM×20MM，病灶累及右侧斜裂胸膜，增强扫描不均匀强化，范围较前增大，周围见多个小结节；右上肺见少许斑片状稍高密度影，边界不清，范围较前增大。右下肺（se7-202、154）见小结节，边界清，直径约8MM，较前稍增大。右下肺另见小条索灶，边界模糊，较前变化不明显。左肺下叶后段见一磨玻璃影，直径约5MM，大致同前。左肺上叶内基底段见结节，直径约4MM，较前稍增大。右肺上叶前内基底段支气管变窄，气管及其余支气管分支通畅。_x0004_右肺门见一淋巴结，边界稍模糊，短径约6MM；左侧锁骨下区、两下上气管旁、血管前、主动脉弓旁、主肺动脉窗、隆突上见多发淋巴结，部分边界不清，大者短径约5MM，轻度强化，同前相仿。两侧胸腔未见积液，左侧胸膜未见明显增厚。心包未见明显积液。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内见多个低密度灶，边界清，大者直径约9MM，未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉未见异常。_x0004_脾大小正常，密度均匀，脾脏边缘见多个结节，最大短径约8MM，密度及强化方式与脾脏类似。胰腺大小、形态正常，密度均匀。两肾及两肾下腺未见异常。_x0004_膈脚后、腹主动脉旁未见肿大淋巴结。_x0004_扫描范围未见骨质破坏征象。</t>
   </si>
   <si>
     <t>12MM×9MM,36MM×20MM</t>
@@ -3560,10 +3560,10 @@
     <t>右肺下叶及左肺上叶,右肺上叶</t>
   </si>
   <si>
-    <t>左下肺癌术后改变，术区未见明显肿物。右肺下叶前段、左肺中上叶胸膜上少许斑片灶，考虑慢性炎症，较前相仿。两侧锁骨下、腋窝、纵隔小淋巴结，较前相仿，建议随诊。肝小囊肿。副脾。右肾囊肿。T2、8、10、12椎体小结节致密灶，较前相仿，考虑骨岛可能性大。左下肺癌术后复查，与2017-02-25片对比：左下肺术区缺如，近肺门区见少许斑片影及金属影，呈术后改变，未见明显异常软组织肿块。右肺下叶前段、左肺中叶及上叶胸膜上见多发斑片影，边界欠清。余肺内未见明显实质性病变。气管及右侧支气管分支未见明显狭窄及异常扩张。两侧腋窝、两侧锁骨下、左下、上气管旁、隆突上、左肺门见小淋巴结，大者短径约9MM，边界尚清，较前相仿。左侧见少量胸腔积液，较前减少；左上少许胸膜增厚；右侧未见胸腔积液及胸膜增厚。肝脏形态、比例未见明显异常，轮廓光整，肝S8、S5、S2见小囊状低密度灶，大者直径约5MM，界清，无强化。肝内外胆管、胆总管无扩张，胆囊不大，未见结石影。肝门区未见明显异常。门静脉未见明显异常。脾不大，密度均匀，上缘见一结节，直径约11MM，密度及强化与脾脏相仿。胰腺大小、形态未见明显异常，密度均匀。右肾见一囊状低密度灶，界清，直径约15MM，无强化。左肾未见明显异常。两侧肾下腺未见明显异常。腹腔干、腹主动脉旁、肠系膜根部未见肿大淋巴结。T2、8、10、12椎体见小致密结节灶，大者直径约5MM；余骨质未见破坏征象。</t>
-  </si>
-  <si>
-    <t>1.左肺下叶MT术后改变；右肺下叶尖后段炎症可能，周围型MT不除外，请结合临床；两肺散在慢性炎性小结节可能，请随访；两肺慢性炎症及陈旧灶；左侧包裹性胸腔积液；2.右肾囊肿；第12胸椎血管瘤。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。鼻窦区无殊。颈部PET/CT图像示两侧胸锁乳突肌内缘见数枚糖代谢异常增高的稍大淋巴结，最大者大小约为12.3MM×6.6MM，最大SUV值约为3.7，考虑为非特异性炎症；两锁骨区、口咽、喉咽部和甲状腺无殊。胸部PET/CT图像示左肺下叶MT术后，两肺散在条索条絮、斑片模糊影（左肺为著）及长径小于5.0MM不规则小结节影，均未见糖代谢异常增高；右肺下叶尖后段见一大小约为47.2MM×25.0MM、糖代谢异常增高的不规则磨玻璃影，最大SUV值约为3.0，病灶内见充气支气管和血管穿行，边缘伴长短毛刺，相邻胸膜牵拉凹陷；左侧胸腔少量包裹性积液；两侧胸膜局部增厚；左肺门术区饱满，未见糖代谢异常增高；纵隔、右肺门及两腋窝无殊；心脏无明显增大。腹部PET图像示胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内未见异常占位；肝内外胆管无扩张；右肾下极见一直径约为36.8MM囊性低密度灶；胆囊、胰、脾、两肾下腺、左肾及两输尿管无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱壁未见异常增厚；两侧精囊腺形态可；两侧膀胱精囊三角对称；前列腺无明显增大，内见点状钙化；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示第12胸椎椎体局部骨小梁呈“栅栏样”改变伴糖代谢减低，余骨未见糖代谢异常增高及骨质破坏吸收征象。</t>
+    <t>左下肺癌术后改变，术区未见明显肿物。_x0004_右肺下叶前段、左肺中上叶胸膜上少许斑片灶，考虑慢性炎症，较前相仿。_x0004_两侧锁骨下、腋窝、纵隔小淋巴结，较前相仿，建议随诊。_x0004_肝小囊肿。副脾。右肾囊肿。_x0004_T2、8、10、12椎体小结节致密灶，较前相仿，考虑骨岛可能性大。左下肺癌术后复查，与2017-02-25片对比：_x0004_左下肺术区缺如，近肺门区见少许斑片影及金属影，呈术后改变，未见明显异常软组织肿块。右肺下叶前段、左肺中叶及上叶胸膜上见多发斑片影，边界欠清。余肺内未见明显实质性病变。气管及右侧支气管分支未见明显狭窄及异常扩张。_x0004_两侧腋窝、两侧锁骨下、左下、上气管旁、隆突上、左肺门见小淋巴结，大者短径约9MM，边界尚清，较前相仿。_x0004_左侧见少量胸腔积液，较前减少；左上少许胸膜增厚；右侧未见胸腔积液及胸膜增厚。_x0004_肝脏形态、比例未见明显异常，轮廓光整，肝S8、S5、S2见小囊状低密度灶，大者直径约5MM，界清，无强化。肝内外胆管、胆总管无扩张，胆囊不大，未见结石影。_x0004_肝门区未见明显异常。门静脉未见明显异常。_x0004_脾不大，密度均匀，上缘见一结节，直径约11MM，密度及强化与脾脏相仿。_x0004_胰腺大小、形态未见明显异常，密度均匀。_x0004_右肾见一囊状低密度灶，界清，直径约15MM，无强化。左肾未见明显异常。_x0004_两侧肾下腺未见明显异常。_x0004_腹腔干、腹主动脉旁、肠系膜根部未见肿大淋巴结。_x0004_T2、8、10、12椎体见小致密结节灶，大者直径约5MM；余骨质未见破坏征象。</t>
+  </si>
+  <si>
+    <t>1.左肺下叶MT术后改变；右肺下叶尖后段炎症可能，周围型MT不除外，请结合临床；两肺散在慢性炎性小结节可能，请随访；两肺慢性炎症及陈旧灶；左侧包裹性胸腔积液；_x0004_2.右肾囊肿；第12胸椎血管瘤。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。鼻窦区无殊。颈部PET/CT图像示两侧胸锁乳突肌内缘见数枚糖代谢异常增高的稍大淋巴结，最大者大小约为12.3MM×6.6MM，最大SUV值约为3.7，考虑为非特异性炎症；两锁骨区、口咽、喉咽部和甲状腺无殊。胸部PET/CT图像示左肺下叶MT术后，两肺散在条索条絮、斑片模糊影（左肺为著）及长径小于5.0MM不规则小结节影，均未见糖代谢异常增高；右肺下叶尖后段见一大小约为47.2MM×25.0MM、糖代谢异常增高的不规则磨玻璃影，最大SUV值约为3.0，病灶内见充气支气管和血管穿行，边缘伴长短毛刺，相邻胸膜牵拉凹陷；左侧胸腔少量包裹性积液；两侧胸膜局部增厚；左肺门术区饱满，未见糖代谢异常增高；纵隔、右肺门及两腋窝无殊；心脏无明显增大。腹部PET图像示胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内未见异常占位；肝内外胆管无扩张；右肾下极见一直径约为36.8MM囊性低密度灶；胆囊、胰、脾、两肾下腺、左肾及两输尿管无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱壁未见异常增厚；两侧精囊腺形态可；两侧膀胱精囊三角对称；前列腺无明显增大，内见点状钙化；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示第12胸椎椎体局部骨小梁呈“栅栏样”改变伴糖代谢减低，余骨未见糖代谢异常增高及骨质破坏吸收征象。</t>
   </si>
   <si>
     <t>右肺下叶尖后段</t>
@@ -3581,7 +3581,7 @@
     <t>左侧乳腺退化不全；左侧腋窝见淋巴结肝肋上斜切115MM/（－），剑上纵切56MM/2指，肝区回声较密尚均，门脉主干内径10MM。脾肋间切30MM/（－）。胆囊59MM×21MM，胆总管4MM。胰头14MM，胰体10MM，胰尾11MM。左肾96MM×40MM×41MM，肾盂分离（－），右肾90MM×42MM×45MM，肾盂分离（－）。两侧输尿管未见明显扩张。CDFI肝胆胰肾血流正常。左侧乳腺导管增多，腺体结构尚正常，未见明显肿块回声，CDFI示其内未见异常彩色血流。右侧乳腺未显示。左侧腋窝见8MM×4MM低回声区，边界清，CDFI未见明显彩色血流。右侧腋窝未见明显肿块，CDFI示血流分布尚正常。</t>
   </si>
   <si>
-    <t>心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号心功能正常心超声检测值：LA   24MM       AO     23MM        MV E 0.73MM/s     EF 71%LV   43MM       IVS     8MM           A 0.60MM/s     FS 40% RA   31MM       LVPW    7MMRV   22MM       PA     19MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图未见异常。</t>
+    <t>心脏结构及运动未见异常_x0004__x0004_各房室腔及大血管未探及异常血流信号_x0004__x0004_心功能正常心超声检测值：_x0004__x0004_LA   24MMAO     23MMV E 0.73m/s     EF 71%_x0004__x0004_LV   43MMIVS     8MMA 0.60m/s     FS 40% _x0004__x0004_RA   31MMLVPW    7MM_x0004__x0004_RV   22MMPA     19MM_x0004__x0004__x0004__x0004_二维及Ｍ型超声心动图特征：_x0004__x0004_升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；_x0004__x0004_各房室腔径正常。_x0004__x0004_室壁厚度及运动正常。房、室间隔连续性完好。_x0004__x0004_各组瓣膜形态、结构及运动正常。_x0004__x0004_心包及心包腔未见异常。_x0004__x0004_彩色及频谱多普勒超声心动图未见异常。</t>
   </si>
   <si>
     <t>右肺腺癌化疗后复查，与2011-11-01片对比：右上肺病灶，基本同前。右肺门及纵隔淋巴结，较前稍缩小。肝左叶转移瘤，较前相似。胸骨、C7、T1、T9左侧横突、L2、3椎体病灶，考虑转移瘤可能性大，较前增多。右肺腺癌化疗后复查：右上肺叶外基底段可见不规则病灶，边界不清楚，与右侧胸膜粘连，病灶大小约15MM×27MM，其内可见片低密度坏死区，增强后实质成分可见较明显强化，病灶周围可见少许斑片状条索状影。左肺纹理清晰，肺内未见实质性病变。气管及支气管分支通畅。右肺门及隆突上可见数个淋巴结，最大者约7MM×7MM。两侧胸腔未见积液。两侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝左叶S5可见双个结节状病灶，大小约12MM×13MM及7MM×9MM，增强后可见环形强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。胸骨、C7、T1、T9左侧横突、L2、3椎体可见结节状致密影及片状骨质密度减低区，边界不清楚，周围未见明显软组织肿物影。</t>
@@ -3611,7 +3611,7 @@
     <t>左肺癌化疗后，对比2015-05-05片：右上肺门区肿物较前稍大，右上肺内转移瘤较前无明显变化。两锁下、两下气管旁、血管前间隙、两上气管旁、主-肺动脉窗、主动脉旁、隆突上及两肺门多发转移淋巴结，较前无明显变化右侧胸膜多发转移瘤，部分较前稍大；右侧胸腔积液较前稍增多。肝内数个囊肿。肝S5肝内胆管结石。左肺癌化疗后，对比2015-05-05片：左上肺肺门区见一团块状肿物，大小约52MM×43MM×42MM，密度不均匀，中心见坏死低密度区，增强扫描见不均匀强化，较前稍增大，病变内缘紧贴纵隔胸膜，包绕右上肺各基底段支气管开口段，管腔稍狭窄。病灶外侧肺内见双个小结节，大小约5MM×5MM及9MM×9MM，边界清楚，较前变化不大。余两肺内未见明确病灶。两锁下、两下气管旁、血管前间隙、两上气管旁、主-肺动脉窗、主动脉旁、隆突上及两肺门见多个肿大淋巴结，最大者约13MM×20MM，部分互相融合，大致同前。右侧胸膜广泛增厚，散在大量结节、团块状病灶，最大者约26MM×52MM，增强扫描强化明显，部分较前稍大。右侧胸腔见少量积液，较前稍多。左侧胸腔未见积液。左侧胸膜无增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀。肝S3、4、5、6、8见数个圆形低密度灶，最大约12MM×12MM，边界清楚，增强扫描未见强化。肝S5见斑点致密灶，直径约4MM。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾及两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描所见骨质未见明确破坏征象。</t>
   </si>
   <si>
-    <t>两乳MT综合治疗后病例：1.甲状腺两叶密度欠均匀伴糖代谢弥漫性增高，考虑为良性病变可能，请结合超声检查；2.双肺炎性病变；双肺陈旧灶；双肺多发慢性炎性小结节可能；3.肝脏钙化灶；脾稍肿大；右侧肾下腺增生可能；子宫钙化灶；4.骨质疏松。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。副鼻窦未见明显异常。颈部PET/CT图像示甲状腺左叶稍增大，两叶密度不均匀，伴糖代谢弥漫性增高，最大SUV值为6.4；余两侧颈部、锁骨区未见明显糖代谢异常增高灶或明显肿大淋巴结；口咽、喉咽无殊。胸部PET/CT图像示两乳MT术后，术区未见糖代谢异常增高灶或占位；双肺野见多发斑片条索影、部分伴糖代谢增高，糖代谢最高者位于左肺上叶，最大SUV值为3.2；余双肺野见多发无糖代谢的小结节影，直径均小于5.0MM；余肺野另见点状致密影；两侧肺门、纵隔、胸壁、腋窝等均未见明显糖代谢异常增高灶；纵隔无明显肿大淋巴结，两肺门影不大；两侧胸腔无积液；心脏无明显增大；两侧腋窝无明显肿大淋巴结。腹部PET图像示胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾未见明显糖代谢异常增高；肝脏表面光整，各叶比例匀称，左后叶包膜上见点状致密影；肝内外胆管无扩张；脾脏稍肿大，密度均，未见明显占位；右侧肾下腺稍增粗；胆囊、胰、两肾、左肾下腺未见明显占位；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈，壁光滑无增厚；子宫见细点状致密影；两附件区未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液；两侧臀部皮上组织内见点状致密影，考虑为良性病变。骨骼、肌肉PET/CT图像示两侧臀部肌肉糖代谢增高，最大SUV值为6.4，考虑为生理性摄取或炎性病变；余处未见异常糖代谢增强；脊椎多个椎体骨小梁稀疏；多个椎体边缘骨质增生，部分椎间盘“真空征”，提示为退行性改变。</t>
+    <t>两乳MT综合治疗后病例：_x0004_1.甲状腺两叶密度欠均匀伴糖代谢弥漫性增高，考虑为良性病变可能，请结合超声检查；_x0004_2.双肺炎性病变；双肺陈旧灶；双肺多发慢性炎性小结节可能；_x0004_3.肝脏钙化灶；脾稍肿大；右侧肾下腺增生可能；子宫钙化灶；_x0004_4.骨质疏松。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。副鼻窦未见明显异常。颈部PET/CT图像示甲状腺左叶稍增大，两叶密度不均匀，伴糖代谢弥漫性增高，最大SUV值为6.4；余两侧颈部、锁骨区未见明显糖代谢异常增高灶或明显肿大淋巴结；口咽、喉咽无殊。胸部PET/CT图像示两乳MT术后，术区未见糖代谢异常增高灶或占位；双肺野见多发斑片条索影、部分伴糖代谢增高，糖代谢最高者位于左肺上叶，最大SUV值为3.2；余双肺野见多发无糖代谢的小结节影，直径均小于5.0MM；余肺野另见点状致密影；两侧肺门、纵隔、胸壁、腋窝等均未见明显糖代谢异常增高灶；纵隔无明显肿大淋巴结，两肺门影不大；两侧胸腔无积液；心脏无明显增大；两侧腋窝无明显肿大淋巴结。腹部PET图像示胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾未见明显糖代谢异常增高；肝脏表面光整，各叶比例匀称，左后叶包膜上见点状致密影；肝内外胆管无扩张；脾脏稍肿大，密度均，未见明显占位；右侧肾下腺稍增粗；胆囊、胰、两肾、左肾下腺未见明显占位；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈，壁光滑无增厚；子宫见细点状致密影；两附件区未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液；两侧臀部皮上组织内见点状致密影，考虑为良性病变。骨骼、肌肉PET/CT图像示两侧臀部肌肉糖代谢增高，最大SUV值为6.4，考虑为生理性摄取或炎性病变；余处未见异常糖代谢增强；脊椎多个椎体骨小梁稀疏；多个椎体边缘骨质增生，部分椎间盘“真空征”，提示为退行性改变。</t>
   </si>
   <si>
     <t>左肺癌切除术后复查，与2013-3-14片对比：左肺术后改变，未见肿瘤复发。两肺多发肺大泡。左侧少量胸腔积液，大致同前。两肾多发囊肿。右侧肾盂结石，左侧输尿管结石。左肺癌切除术后复查，与2013-3-14片对比：左肺下叶缺如，残肺膨胀良好，左侧斜裂见长条状密度增高灶，大致同前。右肺下叶、两肺上叶胸膜上见多发肺大泡影，边界清楚，两肺未见明显结节影。气管、左中、上叶及右肺各叶支气管分枝通畅。两侧肺门及纵隔未见明确肿大淋巴结。左侧胸膜轻度增厚，左侧胸腔见少量积液，较前变化不大。右侧胸腔未见积液，右侧胸膜未见增厚。肝脏大小正常，各叶比例在正常范围以内，外形轮廓光整，密度均匀。肝内胆管未见扩张。胆囊大小正常，其内未见结石影。胆总管未见扩张，其内未见结石头影。肝门区未见异常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态及密度未见异常。两肾见数个囊性灶，最大者大小约11MM×9MM，边界清晰，密度均匀，未见强化。左侧输尿管及右侧肾盂见致密灶。两侧肾下腺所见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围未见明显骨质破坏。</t>
@@ -3641,16 +3641,16 @@
     <t>左下中肺</t>
   </si>
   <si>
-    <t>全身骨骼平面显像：与2017-1-10本院图像比较，左侧第4前肋放射性略减淡，浓聚范围较前略缩小，建议SPECT/CT显像进一步检查明确骨损情况；新增左侧髂骨后部放射性异常浓聚灶，请结合其它检查。显像方法：&lt;?xml：namespaceprefix=ons="urn：schemas-microsoft-com：office：office"/&gt;静脉注射99MMTc-MDP约3小时后，患者取仰卧位，ANT、POST位采集全身骨骼平面影像。影像所见：全身骨骼显影清晰，放射性分布不均匀对称，与2017-1-10本院图像比较，新增左侧髂骨后部放射性异常浓聚灶；左侧第4前肋放射性略减淡，浓聚范围较前略缩小；第5腰椎放射性浓聚灶与前相仿；余处骨骼未见明显放射性异常浓聚或稀疏缺损表现。</t>
-  </si>
-  <si>
-    <t>右肺癌综合治疗后复查，右残肺少许纤维增殖灶，较前未见明显变化。左肺数个小类结节灶，考虑增殖灶可能性大，较前未见明显变化。左肺中叶及上叶散在斑片状灶，较前变化不明显，建议复查。右锁下、纵隔数个淋巴结，较前未见明显变化。右侧胸腔少量积液，右侧胸膜稍增厚，较前未见明显变化。甲状腺右叶病灶，考虑结节性甲状腺肿，较前未见明显变化。肝S2、7小囊肿。胆囊结石。右肾囊肿。胸10椎体右侧稍高密度灶，较前未见明显变化。右肺癌综合治疗后，与2017-5-9日片对比：右肺下叶术后缺失，右下肺支气管残端未见明确肿物。右肺上叶见少许纤维条索，边界清晰，未见明确结节影。左肺见数个类结节，较大者约3MM，边界清，较前未见明显变化。左肺中叶、左肺上叶可见散在斑片状稍高密度影，边界模糊，与前片对比，较前变化不明显。气管及支气管分支通畅。右侧锁骨下、血管前、左下上气管旁、主动脉旁见多个淋巴结，最大者短径约9MM，边界清，增强后见较明显强化，较前未见明显变化。右侧胸腔见少量积液，右上胸膜稍增厚，较前变化不明显。左侧胸腔未见积液。扫描所见甲状腺右叶见2个结节，较大者约14MM×12MM，边界清晰，未见强化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S2、S7肝左静脉旁见囊性灶，直径约3MM，边界清楚，增强后未见强化。胆囊大小正常，内见小结石影，肝内胆管及胆总管未见扩张，未见结石。肝门区未见明确异常，门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见一囊性灶，大小约7MM×4MM，边界清，增强扫描未见强化，左肾、两肾下腺未见异常。腹主动脉旁未见肿大淋巴结。胸10椎体右侧见一稍高密度灶，直径约2MM，边界清，较前相仿。余扫描层面未见明确骨质破坏征象。</t>
-  </si>
-  <si>
-    <t>右上肺癌术后、化疗后改变，局部未见明确复发征象，右侧胸膜增厚。原右肾下腺小结节影，较前缩小，现已不明显。左肾下极结节，考虑肾囊肿。右上肺癌术后、化疗后：右上肺缺如，右上肺野见散在条索影，对比2009-3-16日CT，未见明显变化，余两肺纹理清晰，肺内未见实质性病变。气管及支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。右侧胸膜增厚，左侧胸膜无增厚、粘连。右侧胸壁骨呈术后改变，胸椎未见明显异常。扫描层面左肾下极见一类圆形囊性低密度影，边界清，大小23MM×24MM，增强扫描时未见强化，较前无大变化。原右肾下腺体部结节影，较前缩小，现已显示不清。</t>
-  </si>
-  <si>
-    <t>心内结构及血流未见异常静息状态上右室整体收缩功能正常二维测值（mm）：主动脉内径：21-30-23右房内径：33升主动脉：29室间隔厚度：8右室舒末内径：46右室缩末内径：25右室后壁厚度：8左室内径：19肺动脉内径：23Doppler测值：各瓣口前向血流峰速度（m/s）二尖瓣：E峰1.0A峰0.7三尖瓣：E峰0.4A峰0.5主动脉瓣：1.1肺动脉瓣：0.8心功能测值：右室舒末容积EDV：75(ml)右室缩末容积ESV：30(ml)每搏量SV：45(ml)射血分数EF：60%患者透声条件差，图像质量欠佳。各心腔内径在正常范围，右室各壁向心运动良好，未见节段性运动异常。各瓣膜开放良好，各瓣口前向血流速度在正常范围，二、三尖瓣探及微量返流。心包腔未见液性暗区。</t>
+    <t>全身骨骼平面显像：与2017-1-10本院图像比较，左侧第4前肋放射性略减淡，浓聚范围较前略缩小，建议SPECT/CT显像进一步检查明确骨损情况；新增左侧髂骨后部放射性异常浓聚灶，请结合其它检查。显像方法：&lt;?xml:namespaceprefix=ons="urn:schemas-microsoft-com:office:office"/&gt;静脉注射99MMTc-MDP约3小时后，患者取仰卧位，ANT、POST位采集全身骨骼平面影像。影像所见：全身骨骼显影清晰，放射性分布不均匀对称，与2017-1-10本院图像比较，新增左侧髂骨后部放射性异常浓聚灶；左侧第4前肋放射性略减淡，浓聚范围较前略缩小；第5腰椎放射性浓聚灶与前相仿；余处骨骼未见明显放射性异常浓聚或稀疏缺损表现。</t>
+  </si>
+  <si>
+    <t>右肺癌综合治疗后复查，右残肺少许纤维增殖灶，较前未见明显变化。_x0004_左肺数个小类结节灶，考虑增殖灶可能性大，较前未见明显变化。_x0004_左肺中叶及上叶散在斑片状灶，较前变化不明显，建议复查。_x0004_右锁下、纵隔数个淋巴结，较前未见明显变化。_x0004_右侧胸腔少量积液，右侧胸膜稍增厚，较前未见明显变化。_x0004_甲状腺右叶病灶，考虑结节性甲状腺肿，较前未见明显变化。_x0004_肝S2、7小囊肿。胆囊结石。右肾囊肿。_x0004_胸10椎体右侧稍高密度灶，较前未见明显变化。右肺癌综合治疗后，与2017-5-9日片对比：_x0004_右肺下叶术后缺失，右下肺支气管残端未见明确肿物。右肺上叶见少许纤维条索，边界清晰，未见明确结节影。左肺见数个类结节，较大者约3MM，边界清，较前未见明显变化。左肺中叶、左肺上叶可见散在斑片状稍高密度影，边界模糊，与前片对比，较前变化不明显。_x0004_气管及支气管分支通畅。右侧锁骨下、血管前、左下上气管旁、主动脉旁见多个淋巴结，最大者短径约9MM，边界清，增强后见较明显强化，较前未见明显变化。_x0004_右侧胸腔见少量积液，右上胸膜稍增厚，较前变化不明显。左侧胸腔未见积液。_x0004_扫描所见甲状腺右叶见2个结节，较大者约14MM×12MM，边界清晰，未见强化。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S2、S7肝左静脉旁见囊性灶，直径约3MM，边界清楚，增强后未见强化。_x0004_胆囊大小正常，内见小结石影，肝内胆管及胆总管未见扩张，未见结石。_x0004_肝门区未见明确异常，门静脉未见异常。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见一囊性灶，大小约7MM×4MM，边界清，增强扫描未见强化，左肾、两肾下腺未见异常。_x0004_腹主动脉旁未见肿大淋巴结。_x0004_胸10椎体右侧见一稍高密度灶，直径约2MM，边界清，较前相仿。余扫描层面未见明确骨质破坏征象。</t>
+  </si>
+  <si>
+    <t>右上肺癌术后、化疗后改变，局部未见明确复发征象，右侧胸膜增厚。_x0004_原右肾下腺小结节影，较前缩小，现已不明显。_x0004_左肾下极结节，考虑肾囊肿。_x0004_右上肺癌术后、化疗后：_x0004_右上肺缺如，右上肺野见散在条索影，对比2009-3-16日CT，未见明显变化，余两肺纹理清晰，肺内未见实质性病变。_x0004_气管及支气管分支通畅。_x0004_两肺门及纵隔未见明显肿大淋巴结。_x0004_两侧胸腔未见积液。右侧胸膜增厚，左侧胸膜无增厚、粘连。_x0004_右侧胸壁骨呈术后改变，胸椎未见明显异常。_x0004_扫描层面左肾下极见一类圆形囊性低密度影，边界清，大小23MM×24MM，增强扫描时未见强化，较前无大变化。_x0004_原右肾下腺体部结节影，较前缩小，现已显示不清。</t>
+  </si>
+  <si>
+    <t>心内结构及血流未见异常静息状态上右室整体收缩功能正常二维测值（mm）：主动脉内径：21-30-23右房内径：33升主动脉：29室间隔厚度：8右室舒末内径：46右室缩末内径：25右室后壁厚度：8左室内径：19肺动脉内径：23Doppler测值：各瓣口前向血流峰速度（m/s）二尖瓣：E峰1.0A峰0.7三尖瓣：E峰0.4A峰0.5主动脉瓣：1.1肺动脉瓣：0.8心功能测值：右室舒末容积EDV：75(ml)右室缩末容积ESV：30(ml)每搏量SV：45(ml)射血分数EF：60%患者透声条件差，图像质量欠佳。各心腔内径在正常范围，右室各壁向心运动良好，未见节段性运动异常。各瓣膜开放良好,各瓣口前向血流速度在正常范围，二、三尖瓣探及微量返流。心包腔未见液性暗区。</t>
   </si>
   <si>
     <t>左上肺癌术后化疗后，与2012-12-12片对比，左中肺叶、右下肺叶数个小结节，转移？建议密切随诊。左肺中叶斑片、条索灶，较前无明显变化，考虑增殖性病变。左侧胸膜轻度增厚，较前未见明显变化。左侧胸腔少量积液，较前稍减少。肝内多发囊肿。右肾小囊肿。左侧第4、5前肋术后改变。左上肺癌术后化疗后，与2012-12-12片对比：左肺上叶术后缺如，左肺下中叶充气良好。左肺中叶边缘见少许斑片灶、条索病灶，与胸膜粘连。左中肺叶、右下肺叶见数个小结节，直径约2~3MM，轮廓尚光整，密度尚均匀。气管及余支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。左侧胸腔少量积液，较前稍减少，左侧胸膜轻度增厚，较前未见明显变化。右侧胸腔未见积液。右侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝内见多发类圆形低密灶，边界清，最大者直径约13MM，边界清，增强扫描未见强化。胆囊大小正常，其内未见结石，肝内胆管、胆总管未见扩张，其内未见结石。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见小低密灶，边界清，短径约3MM，边界清，增强扫描未见强化，左肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见明显肿大淋巴结。左侧第4、5前肋见斜行线样高密度影，较前未见明显变化。</t>
@@ -3665,16 +3665,16 @@
     <t>47MM×41MM</t>
   </si>
   <si>
-    <t>肝脏MT术后、TACE术后病例：1.肝脏左叶切缘旁肿瘤存活可能，建议必要时增强MRI检查；双肺上叶转移，左肺下叶转移待排；左侧膈上转移可能，炎性病变待排；2.肝硬化；脾脏略增大；肝脏及左肾囊肿；肝周少量积液；3.甲状腺右叶良性结节（腺瘤可能），请结合超声检查。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET/CT图像示甲状腺无肿大，其内密度不均匀，右叶中部见类圆形低密度结节不伴糖代谢异常增高，直径约为10.7MM，平均CT值约为60Hu；两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位及糖代谢异常增高灶。胸部PET/CT图像示两肺纹理增多，左肺下叶及双肺上叶见多枚类圆形结节，较大者位于左肺上叶前基底段伴糖代谢轻度增高，直径约为9.5MM，最大SUV值约为2.5，其余结节未见明显糖代谢异常增高；各级支气管腔通畅；纵隔无明显肿大淋巴结，两肺门影不大；两侧胸膜略增厚；两侧胸腔无积液；心脏无明显增大；两侧腋窝无明显肿大淋巴结。腹部PET/CT图像示肝脏MT术后及TACE术后，肝脏左叶部分术后缺如，肝脏左叶切缘旁见多处碘油沉积，其中双处见糖代谢轻度增高，大小分别约为12.5MM×14.3MM和22.7MM×18.7MM，早期最大SUV值分别约为2.7和2.5，延迟1小时后最大SUV值分别约为3.5和2.9，滞留指数分别约为29.6%和16%；肝脏右外叶见小圆形无糖代谢的囊性灶，直径约为4.1MM；左侧膈上见糖代谢异常增高的软组织密度结节，大小约为30.5MM×23.5MM，最大SUV值约为6.6；肝内外胆管无扩张；胆囊术后缺如；胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；脾脏肿大，密度均，未见明显占位及糖代谢异常增高灶；左肾上极见小圆形囊性灶不伴糖代谢异常增高，直径约为11.4MM；胰、右肾及两侧肾下腺无殊；腹膜后无明显肿大淋巴结；肝脏少量积液。盆部PET图像示膀胱内见显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈，壁光滑无增厚；两侧精囊腺形态可；两侧膀胱精囊三角对称；前列腺无明显增大，密度均；盆腔内未见占位；乙状结肠见条状密度增高；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像示骨髓弥漫性糖代谢略增高，最大SUV值约为3.1，考虑为生理性摄取或反应性增生。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见异常。</t>
+    <t>肝脏MT术后、TACE术后病例：1.肝脏左叶切缘旁肿瘤存活可能，建议必要时增强MRI检查；双肺上叶转移，左肺下叶转移待排；左侧膈上转移可能，炎性病变待排；_x0004_2.肝硬化；脾脏略增大；肝脏及左肾囊肿；肝周少量积液；_x0004_3.甲状腺右叶良性结节（腺瘤可能），请结合超声检查。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET/CT图像示甲状腺无肿大，其内密度不均匀，右叶中部见类圆形低密度结节不伴糖代谢异常增高，直径约为10.7MM，平均CT值约为60Hu；两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位及糖代谢异常增高灶。胸部PET/CT图像示两肺纹理增多，左肺下叶及双肺上叶见多枚类圆形结节，较大者位于左肺上叶前基底段伴糖代谢轻度增高，直径约为9.5MM，最大SUV值约为2.5，其余结节未见明显糖代谢异常增高；各级支气管腔通畅；纵隔无明显肿大淋巴结，两肺门影不大；两侧胸膜略增厚；两侧胸腔无积液；心脏无明显增大；两侧腋窝无明显肿大淋巴结。腹部PET/CT图像示肝脏MT术后及TACE术后，肝脏左叶部分术后缺如，肝脏左叶切缘旁见多处碘油沉积，其中双处见糖代谢轻度增高，大小分别约为12.5MM×14.3MM和22.7MM×18.7MM，早期最大SUV值分别约为2.7和2.5，延迟1小时后最大SUV值分别约为3.5和2.9，滞留指数分别约为29.6%和16%；肝脏右外叶见小圆形无糖代谢的囊性灶，直径约为4.1MM；左侧膈上见糖代谢异常增高的软组织密度结节，大小约为30.5MM×23.5MM，最大SUV值约为6.6；肝内外胆管无扩张；胆囊术后缺如；胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；脾脏肿大，密度均，未见明显占位及糖代谢异常增高灶；左肾上极见小圆形囊性灶不伴糖代谢异常增高，直径约为11.4MM；胰、右肾及两侧肾下腺无殊；腹膜后无明显肿大淋巴结；肝脏少量积液。盆部PET图像示膀胱内见显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈，壁光滑无增厚；两侧精囊腺形态可；两侧膀胱精囊三角对称；前列腺无明显增大，密度均；盆腔内未见占位；乙状结肠见条状密度增高；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像示骨髓弥漫性糖代谢略增高，最大SUV值约为3.1，考虑为生理性摄取或反应性增生。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见异常。</t>
   </si>
   <si>
     <t>左肺癌切除术后复查，与2013-9-17片对比：左肺术后改变，左中上肺少许索条及斑片灶，大致同前，考虑纤维增殖性病灶。两肺多发局限性肺气肿。左侧少量胸腔积液，大致同前。肝脏未见明确病变。两肾多发囊肿。左肺癌切除术后复查，与2013-9-17片对比：左肺下叶缺如，残肺膨胀良好，左侧斜裂胸膜稍增厚，左中肺及左上肺见不规则条片影，边界欠清，所见较前变化不大。右肺下叶、两肺上叶胸膜上见局限性类圆形透亮度增加，大致同前，两肺未见明显结节影。气管、左中、上叶及右肺各叶支气管分枝通畅。两侧肺门及纵隔未见明确肿大淋巴结。左侧胸膜轻度增厚，左侧胸腔见少量积液，较前变化不大。右侧胸腔未见积液，右侧胸膜未见增厚。肝脏大小正常，各叶比例在正常范围以内，外形轮廓光整，密度均匀。肝内胆管未见扩张。胆囊大小正常，其内未见结石影。胆总管未见扩张，其内未见结石头影。肝门区未见异常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态及密度未见异常。两肾见数个囊性灶，最大者大小约11MM×9MM，边界清晰，密度均匀，未见强化。两肾动脉壁见散在钙化斑。两侧肾下腺所见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围未见明显骨质破坏。</t>
   </si>
   <si>
-    <t>左中下肺炎性假瘤术后：左残肺少许条索灶、左侧胸膜稍增厚，考虑术后改变。右肺下叶及上叶基底段少许条索灶，考虑纤维增殖灶。肝S2、4、8数个小低密度灶，考虑囊肿。肝S8肝内胆管小结石。两肾小囊肿。左中下肺炎性假瘤术后：左中下术后缺失，支气管截断，支气管残端未见明显软组织肿物；左残肺膨胀良好，见少许条索状高密度影，边界欠清，与邻近胸膜粘连；右肺下叶及上叶基底段见少许条索灶。气管及其余支气管分支通畅。两侧锁骨下、纵隔及两肺门未见明显肿大淋巴结。两侧胸腔未见积液；左侧胸膜稍增厚，右侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整；肝S2、4、8见数个小类圆形低密度灶，直径约5MM，边界清晰，未见明显强化；肝S8见一小结节状致密影。肝内胆管未见扩张，其内未见结石影，胆囊不大，胆囊壁无增厚，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区、门静脉未见异常。脾不大，密度均匀。胰腺大小、形态正常，密度均匀。两肾见数个小囊性灶，大者直径约10MM，边界清，未见强化；所见两侧肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描所见左侧第6后肋呈术后改变，余骨质未见明显破坏征象。</t>
-  </si>
-  <si>
-    <t>右肺癌化疗后，对比2016-10-22CT：右上肺癌较前明显缩小，周边阻塞性肺炎较前明显减少。两肺散在小结节，考虑转移瘤，较前缩小、减少。左侧锁骨下区、纵隔多发淋巴结，考虑转移，较前缩小、减少。心包积液，较前减少。肝囊肿。左肾小囊肿。右肺癌化疗后，对比2016-10-22CT：右肺上叶见不规则结节状、片状病灶，边界不清，最大层面大小约12MM×9MM，边缘呈分叶状，增强扫描不均匀强化，紧贴斜裂胸膜，较前明显缩小，右上肺见少许斑片状稍高密度影，边界不清，较前明显减少。两肺散在数个小类结节（se9，im71、76、123），边界清，大者直径3MM，较前缩小、减少。右肺上叶前内基底段支气管变窄，基底段支气管分支管壁增厚，气管及其余支气管分支通畅。左侧锁骨下区、两下上气管旁、血管前、主动脉弓旁、主肺动脉窗、隆突上见多发淋巴结，部分相互融合，大者短径约6MM，轻度强化，较前缩小、减少。两侧胸腔未见积液，左侧胸膜未见明显增厚。心包见弧形积液。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内见多个低密度灶，边界清，大者直径约9MM，未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。左肾见低密度灶，边界清，大小约5MM×3MM，未见强化。右肾及两肾下腺未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。扫描范围未见骨质破坏征象。</t>
+    <t>左中下肺炎性假瘤术后：_x0004_左残肺少许条索灶、左侧胸膜稍增厚，考虑术后改变。_x0004_右肺下叶及上叶基底段少许条索灶，考虑纤维增殖灶。_x0004_肝S2、4、8数个小低密度灶，考虑囊肿。_x0004_肝S8肝内胆管小结石。_x0004_两肾小囊肿。左中下肺炎性假瘤术后：_x0004_左中下术后缺失，支气管截断，支气管残端未见明显软组织肿物；左残肺膨胀良好，见少许条索状高密度影，边界欠清，与邻近胸膜粘连；右肺下叶及上叶基底段见少许条索灶。气管及其余支气管分支通畅。_x0004_两侧锁骨下、纵隔及两肺门未见明显肿大淋巴结。_x0004_两侧胸腔未见积液；左侧胸膜稍增厚，右侧胸膜无增厚、粘连。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整；肝S2、4、8见数个小类圆形低密度灶，直径约5MM，边界清晰，未见明显强化；肝S8见一小结节状致密影。_x0004_肝内胆管未见扩张，其内未见结石影，胆囊不大，胆囊壁无增厚，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区、门静脉未见异常。_x0004_脾不大，密度均匀。胰腺大小、形态正常，密度均匀。两肾见数个小囊性灶，大者直径约10MM，边界清，未见强化；所见两侧肾下腺未见异常。_x0004_膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_扫描所见左侧第6后肋呈术后改变，余骨质未见明显破坏征象。</t>
+  </si>
+  <si>
+    <t>右肺癌化疗后，对比2016-10-22CT：_x0004_右上肺癌较前明显缩小，周边阻塞性肺炎较前明显减少。_x0004_两肺散在小结节，考虑转移瘤，较前缩小、减少。_x0004_左侧锁骨下区、纵隔多发淋巴结，考虑转移，较前缩小、减少。_x0004_心包积液，较前减少。_x0004_肝囊肿。_x0004_左肾小囊肿。右肺癌化疗后，对比2016-10-22CT：右肺上叶见不规则结节状、片状病灶，边界不清，最大层面大小约12MM×9MM，边缘呈分叶状，增强扫描不均匀强化，紧贴斜裂胸膜，较前明显缩小，右上肺见少许斑片状稍高密度影，边界不清，较前明显减少。两肺散在数个小类结节（se9，im71、76、123），边界清，大者直径3MM，较前缩小、减少。_x0004_右肺上叶前内基底段支气管变窄，基底段支气管分支管壁增厚，气管及其余支气管分支通畅。_x0004_左侧锁骨下区、两下上气管旁、血管前、主动脉弓旁、主肺动脉窗、隆突上见多发淋巴结，部分相互融合，大者短径约6MM，轻度强化，较前缩小、减少。_x0004_两侧胸腔未见积液，左侧胸膜未见明显增厚。心包见弧形积液。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内见多个低密度灶，边界清，大者直径约9MM，未见强化。_x0004_肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉未见异常。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。_x0004_左肾见低密度灶，边界清，大小约5MM×3MM，未见强化。_x0004_右肾及两肾下腺未见异常。_x0004_膈脚后、腹主动脉旁未见肿大淋巴结。_x0004_扫描范围未见骨质破坏征象。</t>
   </si>
   <si>
     <t>12MM×9MM</t>
@@ -3689,7 +3689,7 @@
     <t>19MM×20MM</t>
   </si>
   <si>
-    <t>左乳MT术后，左中肺术后；左肺结节，与前片（2015-8-11）相仿，建议随访；左肺少许慢性炎症及陈旧灶；度脂肪肝；肝囊肿；右肾囊肿，请随访；甲状腺结节，建议超声行进一步检查。左肺上叶见高低密度混合灶，边界欠清，大小约为6.9MM×6.9MM（im33），左肺下叶另见一淡斑片影，大小约6.4MM×6.4MM（im19），左肺近胸膜处见一小结节影（im13），左肺上叶见条索影，余未见异常密度灶，所见各支气管腔通畅，心脏大小正常范围，肺门及纵隔未见肿大淋巴结，胸膜无增厚，胸腔内无积液。另见肝脏边缘光滑，密度不均，内见双枚低密度灶，大小约为8.3MM×10.4MM（im50）、9.8MM×7.3MM（im49）；右肾内见低密度灶，大小约12.5×8.4（im71）。右侧甲状腺内密度不均，内见一低密度类圆形结节。</t>
+    <t>左乳MT术后，左中肺术后；左肺结节，与前片（2015-8-11）相仿，建议随访；左肺少许慢性炎症及陈旧灶；_x0004_度脂肪肝；肝囊肿；右肾囊肿，请随访；甲状腺结节，建议超声行进一步检查。左肺上叶见高低密度混合灶，边界欠清，大小约为6.9MM×6.9MM（im33），左肺下叶另见一淡斑片影，大小约6.4MM×6.4MM（im19），左肺近胸膜处见一小结节影（im13），左肺上叶见条索影，余未见异常密度灶，所见各支气管腔通畅，心脏大小正常范围，肺门及纵隔未见肿大淋巴结，胸膜无增厚，胸腔内无积液。另见肝脏边缘光滑，密度不均，内见双枚低密度灶，大小约为8.3MM×10.4MM（im50）、9.8MM×7.3MM（im49）；右肾内见低密度灶，大小约12.5×8.4（im71）。右侧甲状腺内密度不均，内见一低密度类圆形结节。</t>
   </si>
   <si>
     <t>右上肺癌术后、化疗后复查：术区未见明显肿瘤复发征象，右肺少许条索影，考虑慢性炎症，较前好转。左肺中叶和上叶少许纤维灶，较前变化不明显。隆突上方食管壁增厚，管腔稍狭窄，平滑肌瘤与食管癌鉴别。肝囊肿。左肾囊肿。右侧肾下腺病变，较前未见明显变化。右肾上极结节，考虑血管平滑肌脂肪瘤可能性大，较前无明显变化。右上肺癌术后、化疗后复查，与2016-01-21日片对比：右上肺缺如，残肺含气良好，右肺野见散在少许条索影，边清，较前减少。左肺中叶和左上肺后基底段可见斑片状影，边缘欠清，较前无明显变化。气管及左肺、右下肺支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。隆突上方食管腔狭窄，食管壁较前明显增厚，可见边界清楚肿物影，矢状位大小约42MM×20MM增强后强化。两侧胸腔未见积液。右侧胸膜增厚，左侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。肝内见散在几个小圆形低密度灶，直径约3MM~6MM，边界清楚，增强扫描未见强化。肝内外胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影。肝门区正常。肝静脉、门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾上极见一稍低密度影，大小9MM×10MM，边界尚清，其内可见小片状极低密度影，增强扫描不均匀强化，较前无明显变化。左肾实质内见散在多个类圆形低密度灶，最大者约27MM×29MM，边清，未见强化。右侧肾下腺见一病变，大小7MM×11MM，密度欠均匀，增强轻度强化。左侧肾下腺未见明显病变。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。右侧胸壁骨呈术后改变，余扫描范围内骨质未见骨质破坏征象。</t>
@@ -3713,7 +3713,7 @@
     <t>40MM×58MM</t>
   </si>
   <si>
-    <t>右下肺叶切除术后：右侧支气管残端上缘软组织灶，术后改变？复发？建议密切随诊。右侧胸腔少量积气、积液，部分为包裹性；右侧胸膜稍增厚，考虑术后反应性改变可能，建议复查。左肺及右肺上叶少许纤维增殖灶。左肺中叶、两肺上叶钙化灶。右侧锁骨下窝、纵隔散在小淋巴结，考虑反应性淋巴结可能，建议复查。肝S3囊肿。右下肺叶切除术后：右肺下叶术后缺如，右肺下叶支气管残端见条状金属灶，残端上缘见团块灶，边界稍模糊，大小约35MM×15MM，密度尚均匀，增强后较明显强化。右侧胸腔见少量积气、积液，部分为包裹性；右侧胸膜稍增厚，未见明显结节；左肺及右肺上叶见少许条索灶，边界模糊；左肺中叶、两肺上叶见颗粒状高密度钙化灶，边界清；气管及其余支气管分支通畅。右侧锁骨下、左侧下上气管旁、右上气管旁、主肺动脉窗、隆突上、左肺门见散在淋巴结，边界清，密度均匀，较大者短径约6MM。左侧胸腔未见积液。左侧胸膜无增厚、粘连。肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，肝S3见囊性灶，界清，直径4MM，未见强化。肝内胆管未见扩张，其内未见结石影，胆囊不大，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾及两肾下腺大小、形态未见异常，密度均匀。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。右侧第7肋呈术后改变，余扫描所见骨质未见破坏征象。</t>
+    <t>右下肺叶切除术后：_x0004_右侧支气管残端上缘软组织灶，术后改变？复发？建议密切随诊。_x0004_右侧胸腔少量积气、积液，部分为包裹性；右侧胸膜稍增厚，考虑术后反应性改变可能，建议复查。_x0004_左肺及右肺上叶少许纤维增殖灶。_x0004_左肺中叶、两肺上叶钙化灶。_x0004_右侧锁骨下窝、纵隔散在小淋巴结，考虑反应性淋巴结可能，建议复查。_x0004_肝S3囊肿。右下肺叶切除术后：_x0004_右肺下叶术后缺如，右肺下叶支气管残端见条状金属灶，残端上缘见团块灶，边界稍模糊，大小约35MM×15MM，密度尚均匀，增强后较明显强化。_x0004_右侧胸腔见少量积气、积液，部分为包裹性；右侧胸膜稍增厚，未见明显结节；左肺及右肺上叶见少许条索灶，边界模糊；左肺中叶、两肺上叶见颗粒状高密度钙化灶，边界清；气管及其余支气管分支通畅。_x0004_右侧锁骨下、左侧下上气管旁、右上气管旁、主肺动脉窗、隆突上、左肺门见散在淋巴结，边界清，密度均匀，较大者短径约6MM。_x0004_左侧胸腔未见积液。左侧胸膜无增厚、粘连。_x0004_肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，肝S3见囊性灶，界清，直径4MM，未见强化。肝内胆管未见扩张，其内未见结石影，胆囊不大，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。_x0004_脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。_x0004_两肾及两肾下腺大小、形态未见异常，密度均匀。_x0004_膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_右侧第7肋呈术后改变，余扫描所见骨质未见破坏征象。</t>
   </si>
   <si>
     <t>右肺腺癌治疗后复查，与2013-9-17片对比：右下肺及上肺不张，右上肺不张较前稍好转。右侧胸腔积液积气，积液较前减少。肝内多发转移瘤，较前增多，部分增大。腹腔积液，较前增多。两肾多发结节，大致同前。胸骨、颈椎、胸椎、腰椎骨转移瘤，大致同前。右肺腺癌治疗后复查，与2013-9-17片对比：右胸膜结节状增厚，右胸腔见中量积液、少量积气，积液较前减少。右肺下叶、上叶体积缩小，见片状致密影，右上肺致密影范围较前稍缩小；余两肺野清晰，未见新增病灶。气管及支气管分支通畅。两肺门和纵隔未见明显肿大淋巴结。左侧胸膜未见增厚，左侧胸腔未见积液。肝脏形态失常，肝右叶增大，其外形轮廓略呈波浪状，肝内散在多发结节、肿块，边界不清，部分相互融合，增强扫描不均匀强化，侵犯肝左静脉、门静脉左前支，病灶较前增多，部分增大。肝内外胆管无扩张。胆囊不大，胆囊壁均匀增厚，增强扫描粘膜强化明显。肝门区未见肿大淋巴结。腹腔见积液，较前增多。脾稍大，最厚处约46MM，密度均匀。胰腺形态、大小及密度未见异常。两侧肾下腺未见异常。两肾实质内见多发结节灶，最大者约14MM×4MM，边界不清，增强扫描轻度强化，大致同前。胸骨、C7、T1、T6、T8、T9椎体及附件、T10、T11、L1右侧附件、L2、L3、L4椎体见不规则致密影，边欠清，范围较前无明显变化。右侧第5肋腋段见致密灶，较前无明显变化。</t>
@@ -3722,7 +3722,7 @@
     <t>颅脑未见明显异常。右肾小血管壁钙化。右上肺病灶，考虑肺癌可能性大。右上肺纤维增殖灶。大脑各叶、小脑及脑干形态未见异常，密度均匀，增强后亦未见异常密度区。各脑室及脑池大小、形态未见异常。大脑中线结构未见移位，未见占位性病变。颅盖骨骨质未见破坏。两眼球后未见占位性病变。扫描范围内所见两侧下颌窦、筛窦、蝶窦充气良好，骨壁完整。肝脏形态、大小未见异常，各叶比例在正常范围以内，轮廓光整，密度均匀。肝内外胆管未见扩张，胆囊不大，内未见异常密度灶。肝门区未见异常。门静脉未见异常。脾不大，密度均匀。胰腺大小、形态及密度未见异常。两侧肾脏、两侧肾下腺未见异常。右侧肾盂内肾动脉血管壁可见壳状致密灶。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围未见明显骨质破坏。扫描所见右上肺见一结节灶，大小约19MM×21MM，呈浅分叶，周围可见毛刺，局部牵拉胸膜，密度不均匀，内可见小空洞，增强扫描见轻中度强化。右上肺见条索影。</t>
   </si>
   <si>
-    <t>右上肺癌术后、化疗后，右侧胸膜稍增厚，较前(2010-03-29日CT)未见明显变化。肝S6低密度灶，较前无明显变化，考虑肝囊肿。右肾上极结节，考虑血管平滑肌脂肪瘤可能性大；左肾囊肿。右侧肾下腺小结节，考虑肾下腺腺瘤可能性大。右上肺癌术后、化疗后复查：右上肺缺失，右上肺野见散在少许条索影，与2010-03-29日CT片对比，未见明显变化，余两肺纹理清晰，肺内未见实质性病变。气管及左肺、右下肺支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。右侧胸膜增厚，左侧胸膜无增厚、粘连。右侧胸壁骨呈术后改变，胸椎未见异常。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。肝S6见散在几个小圆形低密度灶，直径约3MM~6MM，边界清楚，增强扫描未见强化。同前对比，未见明显变化。肝内外胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影。肝门区正常。肝静脉、门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾上极见一结节影，大小9MM×10MM，边界尚清，其内可见小片状极低密度影，增强扫描不均匀强化。左肾实质内见散在多个类圆形低密度灶，最大者约23MM×26MM，边界清楚，增强扫描未见强化。右侧肾下腺见一结节，大小7MM×11MM，密度欠均匀，增强轻度强化；左侧肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。</t>
+    <t>右上肺癌术后、化疗后，右侧胸膜稍增厚，较前(2010-03-29日CT)未见明显变化。_x0004_肝S6低密度灶，较前无明显变化，考虑肝囊肿。_x0004_右肾上极结节，考虑血管平滑肌脂肪瘤可能性大；左肾囊肿。_x0004_右侧肾下腺小结节，考虑肾下腺腺瘤可能性大。右上肺癌术后、化疗后复查：_x0004_右上肺缺失，右上肺野见散在少许条索影，与2010-03-29日CT片对比，未见明显变化，余两肺纹理清晰，肺内未见实质性病变。_x0004_气管及左肺、右下肺支气管分支通畅。_x0004_两肺门及纵隔未见明显肿大淋巴结。_x0004_两侧胸腔未见积液。右侧胸膜增厚，左侧胸膜无增厚、粘连。_x0004_右侧胸壁骨呈术后改变，胸椎未见异常。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。_x0004_肝S6见散在几个小圆形低密度灶，直径约3MM~6MM，边界清楚，增强扫描未见强化。同前对比，未见明显变化。_x0004_肝内外胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影。_x0004_肝门区正常。肝静脉、门静脉未见异常。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。_x0004_右肾上极见一结节影，大小9MM×10MM，边界尚清，其内可见小片状极低密度影，增强扫描不均匀强化。左肾实质内见散在多个类圆形低密度灶，最大者约23MM×26MM，边界清楚，增强扫描未见强化。右侧肾下腺见一结节，大小7MM×11MM，密度欠均匀，增强轻度强化；左侧肾下腺未见异常。_x0004_膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。</t>
   </si>
   <si>
     <t>PTCD术后改变，肝门胆管及肝右叶胆管MT，侵犯门脉右支、肝右静脉，肝右叶多发转移，肝门肿大淋巴结，结肠肝曲及左腹壁转移灶，总体较2017-05-05片进展；肝内胆管结石；胆囊壁多发憩室形成可能，两肾微小囊肿。PTCD术后，胆管引流中，肝内胆管扩张，以右叶胆管为主并伴结节状致密影，肝右外叶轻度萎缩，肝门胆管、胆囊颈管管壁增厚，管腔狭窄，增强后轻度强化，肝右叶见团块状软组织影，范围约3.4CM×5.4CM，边界欠清，增强后轻度强化，肝右内叶见数枚环状强化的结节灶，肝门部见肿大淋巴结，局部与十二指肠降段分界欠清，门脉右支狭窄，与右叶病灶分界不清，肝右静脉未见明确显示；胆囊增大，张力增高，壁增厚，胆囊壁内见小憩室样改变；脾脏未见肿大，内见小囊状无强化低密度影；胰腺无殊；两肾见微小囊性灶；后腹膜淋巴结稍大；腹腔未见积液。结肠肝曲见小结节状强化灶；左腹壁见结节影伴强化，范围约2.5CM×3.2CM。</t>
@@ -3731,7 +3731,7 @@
     <t>肝门胆管,肝右叶胆管</t>
   </si>
   <si>
-    <t>肝内多发实质占位性病变，请结合其他检查胆囊壁增厚，胆囊结石左肾高回声病变，请结合其他检查肝肋上斜径约：14.0CM。肝脏形态大小正常，肝表面光滑，肝边缘锐，肝实质回声不均匀，肝静脉显示清晰，门脉系统无扩张，肝内血流显示良好，肝内散在多个大小不等低回声及高回声，大者约：4.6CM×5.7CM，小者约2.0CM×1.9CM。胆囊大小约：5.4CM×1.8CM。壁厚约0.6CM，胆囊内充满点状低回声，并可见强回声移动，有声影，肝内外胆管无扩张。脾肋间长约：10.0CM，脾厚约：3.2CM。脾脏回声均匀。胰腺形态大小正常，回声均匀，胰管无扩张。膀胱充盈不良。左肾大小约：11.0CM×5.1CM×5.2CM，左肾实质处可见高回声区，范围约5.8CM×6.9CM，轮廓不清。右肾大小约：11.0CM×5.1CM×5.0CM。两肾形态大小正常，皮髓质界限清晰，两肾窦无分离，两肾血流显示良好，两侧输尿管未显示。左肾下腺大小约：2.8CM×2.0CM右肾下腺大小约：1.8CM×2.4CM两肾下腺区未见明显包块样回声腹腔内可见数个淋巴结回声，大者约：2.4CM×1.5CM</t>
+    <t>肝内多发实质占位性病变,请结合其他检查胆囊壁增厚,胆囊结石左肾高回声病变，请结合其他检查肝肋上斜径约：14.0CM。肝脏形态大小正常，肝表面光滑，肝边缘锐，肝实质回声不均匀，肝静脉显示清晰，门脉系统无扩张，肝内血流显示良好,肝内散在多个大小不等低回声及高回声,大者约：4.6CM×5.7CM,小者约2.0CM×1.9CM。胆囊大小约：5.4CM×1.8CM。壁厚约0.6CM，胆囊内充满点状低回声,并可见强回声移动,有声影，肝内外胆管无扩张。脾肋间长约：10.0CM，脾厚约：3.2CM。脾脏回声均匀。胰腺形态大小正常，回声均匀，胰管无扩张。膀胱充盈不良。左肾大小约：11.0CM×5.1CM×5.2CM,左肾实质处可见高回声区,范围约5.8CM×6.9CM,轮廓不清。右肾大小约：11.0CM×5.1CM×5.0CM。两肾形态大小正常，皮髓质界限清晰，两肾窦无分离，两肾血流显示良好，两侧输尿管未显示。左肾下腺大小约:2.8CM×2.0CM右肾下腺大小约:1.8CM×2.4CM两肾下腺区未见明显包块样回声腹腔内可见数个淋巴结回声,大者约：2.4CM×1.5CM</t>
   </si>
   <si>
     <t>肾盂癌术后、化疗后复查，与2014-10-22片对比：术区未见明确肿瘤复发征象；脂肪肝；左肺下叶尖段条索、类结节影，考虑增殖灶，较前相仿；右肺上叶后基底段小结节，较前相仿，考虑增殖灶可能性大；右锁骨下窝、纵隔小淋巴结，较前未见明显变化；左心房内充盈缺损影，较前未见明显变化；甲状腺两叶病灶，考虑结节性甲状腺肿；腰1椎体压缩性骨折，大致同前。肾盂癌术后、化疗后复查，与2014-10-22片对比：右肾术后缺失，局部未见明确软组织肿物。左肾及两侧肾下腺未见异常。肝脏形态、比例正常，轮廓光整，肝实质密度普遍减低，未见明显异常强化。肝内外胆管无扩张，胆囊不大，胆总管未见扩张，未见结石影。肝门区及门静脉未见明显异常。脾脏及胰腺大小、形态、密度未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。子宫大小、形态未见明显异常，子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。两侧腹股沟区、髂血管旁未见肿大淋巴结。两肺纹理清晰，左肺下叶尖段见条索、类结节影，大者直径约3MM，边界清楚，边缘不规整，与邻近胸膜牵拉粘连，大致同前。右肺上叶后基底段见一小结节，直径约为3MM，边界清楚，边缘规整，较前相仿。气管及支气管分支通畅。右锁骨下窝、左上气管旁、主动脉旁见数个小淋巴结，最大约6MM×8MM，边界清楚，较前未见明显变化。两侧胸腔未见积液。两侧胸膜未见增厚、粘连。左心房充盈欠佳，内见少许低密度影，未见明显强化，较前未见明显变化。扫描层面内甲状腺两叶见多个结节状低密度病灶，最大者约为8MM×11MM，增强后轻度强化或强化不明显，较前相仿。腰1椎体变扁呈楔形，椎体内见散在斑点斑块状致密影。余骨质未见明确破坏征象。</t>
@@ -3740,7 +3740,7 @@
     <t>左肺上叶背段结节，不排除瘢痕癌可能。腹部未见明显异常。左肺上叶背段见一结节，边界清楚，大小约12MM×10MM，边缘见分叶、毛刺及长条索影，轻度前肋斜裂胸膜，病灶密度不均匀，其内见一点状钙化灶，增强扫描轻度强化。余肺纹理清晰，未见明显实质性病变。气管及支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜未见增厚。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀。肝内胆管、胆总管未见扩张，其内未见结石，胆囊大小正常，其内未见结石。肝门区未见异常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾、两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见明显肿大淋巴结。扫描所见骨质未见明显破坏征象。</t>
   </si>
   <si>
-    <t>心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号右室舒张功能减低，收缩功能正常心超声检测值：LA   17MM       AO     24MM        MV E 0.55MM/s     EF 65%LV   43MM       IVS     8MM           A 0.70MM/s     FS 35% RA   25MM       LVPW    8MMRV   21MM       PA     20MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图未见异常。</t>
+    <t>心脏结构及运动未见异常_x0004__x0004_各房室腔及大血管未探及异常血流信号_x0004__x0004_右室舒张功能减低，收缩功能正常心超声检测值：_x0004__x0004_LA   17MMAO     24MMV E 0.55m/s     EF 65%_x0004__x0004_LV   43MMIVS     8MMA 0.70m/s     FS 35% _x0004__x0004_RA   25MMLVPW    8MM_x0004__x0004_RV   21MMPA     20MM_x0004__x0004__x0004__x0004_二维及Ｍ型超声心动图特征：_x0004__x0004_升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；_x0004__x0004_各房室腔径正常。_x0004__x0004_室壁厚度及运动正常。房、室间隔连续性完好。_x0004__x0004_各组瓣膜形态、结构及运动正常。_x0004__x0004_心包及心包腔未见异常。_x0004__x0004_彩色及频谱多普勒超声心动图未见异常。</t>
   </si>
   <si>
     <t>肺癌放化疗后：左肺门旁病灶较前变化不明显。左下肺、左上肺斑片影，与前片对比，病灶较前缩小，部分病灶密度增厚。左肺中叶小结节，较前变化不明显。右肺下叶少量纤维增殖灶，大致同前。左侧少量胸腔积液。两侧锁骨下窝、纵隔及左肺门淋巴结，较前变化不明显。肝S8钙化灶，较前变化不明显。右肾小囊肿。肺癌放化疗后复查，对比2016-4-1片：左肺门旁见少量软组织密度灶，边界欠清，病灶包绕左肺下叶支气管，范围难以准确测量，较前变化不明显；左肺下叶及左肺上叶见多发斑片灶，边界不清，部分病灶见空气支气管征，与前片对比，左肺下叶病灶较前缩小，上叶背段病灶密度较前增高，增强扫描强化稍明显。左肺中叶见小结节灶，短径约3MM，较前变化不明显。右肺下叶见少许条索影及类结节灶，大致同前。两侧锁骨下窝、左下气管旁、左上气管旁及左肺门见多发淋巴结，部分相互融合，最大约18MM×16MM，较前变化不明显。左侧胸腔见少量积液；右侧胸腔未见积液，两侧胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S8近膈顶见片状致密，边界清。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见类圆形低密度灶，直径约5MM，边界清楚，未见强化。所示左肾及两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围未见明显骨质破坏征象。</t>
@@ -3752,13 +3752,13 @@
     <t>两侧半卵圆中心脱髓鞘改变同前。右侧小脑转移大小同前，强化减弱，左侧小脑强化结节略缩小。右侧枕叶强化结节同前，追查。与2015-1-6头部MRI对比：两侧大脑半球结构大致对称，中线结构居中。两侧半卵圆中央区小点片状长T1长T2信号同前，周围边界清楚，未见强化。右枕叶环形强化结节同前，仍约3MM(SE8，IM12)。右侧小脑稍长T2信号结节大小同前，仍约13MM×6MM（SE2IM8），增强扫描强化较前减弱；邻近脑膜现未见强化；左侧小脑半球类圆形强化结节较前缩小，原约4MM，现约3MM（SE8IM4）。脑干未见异常信号灶。中线结构居中，各脑室未见扩张，脑沟裂未见增宽。头颅诸骨未见骨质破坏灶。</t>
   </si>
   <si>
-    <t>“肺肉瘤样癌外院放化疗后”：右肺下叶、上叶斑片状、条片状影，放射性炎症并局限性肺不张可能性大，较前进展。右侧胸腔积液并部分包裹性积液形成。两侧肋胸膜、纵隔胸膜不均匀增厚，考虑转移瘤，累及心包膜及右第3前肋。右侧第8肋骨破坏并软组织肿块，考虑转移瘤，侵犯累及背部肌肉及胸膜。腹部未见明确病变。两侧会阴部囊性灶，考虑前庭大腺。“肺肉瘤样癌外院放化疗后”，对比2017.4.6外院片：右肺下叶上舌段、上叶可见多发斑片状、条片状高密度影，边界模糊，密度不均匀，内见支气管气象，增强扫描呈明显强化，内见小血管穿行。左肺纹理尚清，肺野未见明确实质性病变。气管及支气管分支通畅。右侧胸腔可见积液，部分呈包裹性改变。两侧肋胸膜、纵隔胸膜不均匀增厚，并可见多发结节及肿块，较大者位于右心缘旁，边界不清，范围约33MM×20MM，密度不均匀，增强呈明显不均匀强化，病灶累及心包膜；另见右前肋胸膜病灶累及右侧第3前肋内缘骨皮质。右侧第8肋骨骨质破坏，周围可见软组织肿块，范围约49MM×48MM，增强扫描呈不均匀强化，向外侵犯背部肌肉，向内侵犯胸膜。肝脏形态正常，外形轮廓光整，密度均匀，增强扫描未见异常强化表现。胆囊大小正常，未见结石。肝内胆管及胆总管未见扩张，未见结石。肝门区结构未见异常。门静脉主干及分支未见充盈缺损。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾未见明确异常。两肾下腺未见明确异常。膈脚后、腹主动脉旁未见肿大淋巴结。膀胱充盈可，境界清楚，膀胱壁未见增厚。子宫萎小，密度及强化未见异常，宫腔未见扩张，子宫颈未见明确异常。两侧附件区未见软组织肿块。直肠未见明确异常。两侧髂血管旁、腹股沟未见肿大淋巴结。两侧会阴部各见一囊性灶，直径约19~23MM，平扫呈高密度，增强后未见明显强化。余扫描范围内骨质结构未见破坏征象。</t>
+    <t>“肺肉瘤样癌外院放化疗后”：_x0004_右肺下叶、上叶斑片状、条片状影，放射性炎症并局限性肺不张可能性大，较前进展。_x0004_右侧胸腔积液并部分包裹性积液形成。_x0004_两侧肋胸膜、纵隔胸膜不均匀增厚，考虑转移瘤，累及心包膜及右第3前肋。_x0004_右侧第8肋骨破坏并软组织肿块，考虑转移瘤，侵犯累及背部肌肉及胸膜。_x0004_腹部未见明确病变。_x0004_两侧会阴部囊性灶，考虑前庭大腺。“肺肉瘤样癌外院放化疗后”，对比2017.4.6外院片：_x0004_右肺下叶上舌段、上叶可见多发斑片状、条片状高密度影，边界模糊，密度不均匀，内见支气管气象，增强扫描呈明显强化，内见小血管穿行。_x0004_左肺纹理尚清，肺野未见明确实质性病变。气管及支气管分支通畅。_x0004_右侧胸腔可见积液，部分呈包裹性改变。_x0004_两侧肋胸膜、纵隔胸膜不均匀增厚，并可见多发结节及肿块，较大者位于右心缘旁，边界不清，范围约33MM×20MM，密度不均匀，增强呈明显不均匀强化，病灶累及心包膜；另见右前肋胸膜病灶累及右侧第3前肋内缘骨皮质。_x0004_右侧第8肋骨骨质破坏，周围可见软组织肿块，范围约49MM×48MM，增强扫描呈不均匀强化，向外侵犯背部肌肉，向内侵犯胸膜。_x0004_肝脏形态正常，外形轮廓光整，密度均匀，增强扫描未见异常强化表现。胆囊大小正常，未见结石。肝内胆管及胆总管未见扩张，未见结石。肝门区结构未见异常。门静脉主干及分支未见充盈缺损。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾未见明确异常。两肾下腺未见明确异常。膈脚后、腹主动脉旁未见肿大淋巴结。_x0004_膀胱充盈可，境界清楚，膀胱壁未见增厚。子宫萎小，密度及强化未见异常，宫腔未见扩张，子宫颈未见明确异常。两侧附件区未见软组织肿块。直肠未见明确异常。两侧髂血管旁、腹股沟未见肿大淋巴结。两侧会阴部各见一囊性灶，直径约19~23MM，平扫呈高密度，增强后未见明显强化。_x0004_余扫描范围内骨质结构未见破坏征象。</t>
   </si>
   <si>
     <t>肺淋巴下皮癌化疗后，无旧片对比：现两肺多发结节病钙化灶，考虑转移瘤；两锁下、纵隔及两肺门多发淋巴结肿大，考虑转移瘤；甲状腺两叶增大并多发结节，考虑结节性甲状腺肿；肝S6囊肿；左肾结石，两肾囊肿；胸骨、胸椎、腰椎多发骨质致密影，考虑转移瘤。肺淋巴下皮癌化疗后：两肺可见多发结节影，大小约2MM~9MM，部分边界欠清，密度欠均匀，部分内可见钙化影。气管及支气管分支通畅。两锁下、血管前间隙、下、上气管旁、隆突上及两肺门可见数个肿大淋巴结，边界不清，部分融合，最大约36MM×37MM，增强见不均匀强化。病灶包绕气管，气管管腔稍狭窄；包绕右侧头臂静脉，血管管腔变扁，下腔静脉内见小片状充盈缺损。两侧胸腔未见积液。两侧胸膜无增厚、粘连。甲状腺两叶体积增大，密度不均匀，内见多发低密度结节，边界不清，最大约19MM×20MM，密度不均匀，内见钙化灶，增强扫描可见轻度不均匀强化，强化程度低于正常甲状腺组织。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀。肝S6见一类圆形低密度灶，直径约5MM，边界清，增强未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。左肾盂可见数个结节样致密影，最大直径约11MM。两肾见数个类圆形低密度灶，最大直径约9MM。两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围数个胸椎、腰椎及胸骨内多发斑片状致密影。</t>
   </si>
   <si>
-    <t>None右肺癌综合治疗后，与2017-7-12日片对比：右肺下叶术后缺失，右肺上叶可见大片状密度增高影，其内可见空气支气管征，其周围可见片状模糊影，邻近胸膜增厚，考虑炎症病变。右肺上叶少许纤维增殖灶，大致同前。左肺见数个类结节，较大者约3MM，边界清，考虑增殖纤维灶可能性大较前未见明显变化。左肺下叶、中叶、上叶可见散在斑片状稍高密度影，边界模糊，与前片对比，较前变化不明显。右侧锁骨下、血管前、下上气管旁、主动脉旁见多个淋巴结，最大者短径约9MM，边界清，增强后见较明显强化，较前未见明显变化。右侧胸腔见少量积液，右上胸膜稍增厚，较前变化不明显。扫描所见甲状腺右叶见2个结节，较大者约14MM×12MM，边界清晰，增强时明显强化，考虑结节性甲状腺肿。肝S2、S7小囊肿，胆囊结石，右肾囊肿，较前无明显改变。胸12椎体右侧见一稍高密度灶，直径约2MM，边界清，较前相仿。</t>
+    <t>None右肺癌综合治疗后，与2017-7-12日片对比：_x0004_右肺下叶术后缺失，右肺上叶可见大片状密度增高影，其内可见空气支气管征，其周围可见片状模糊影，邻近胸膜增厚，考虑炎症病变。_x0004_右肺上叶少许纤维增殖灶，大致同前。_x0004_左肺见数个类结节，较大者约3MM，边界清，考虑增殖纤维灶可能性大较前未见明显变化。_x0004_左肺下叶、中叶、上叶可见散在斑片状稍高密度影，边界模糊，与前片对比，较前变化不明显。_x0004_右侧锁骨下、血管前、下上气管旁、主动脉旁见多个淋巴结，最大者短径约9MM，边界清，增强后见较明显强化，较前未见明显变化。_x0004_右侧胸腔见少量积液，右上胸膜稍增厚，较前变化不明显。_x0004_扫描所见甲状腺右叶见2个结节，较大者约14MM×12MM，边界清晰，增强时明显强化，考虑结节性甲状腺肿。_x0004_肝S2、S7小囊肿，胆囊结石，右肾囊肿，较前无明显改变。_x0004_胸12椎体右侧见一稍高密度灶，直径约2MM，边界清，较前相仿。_x0004_</t>
   </si>
   <si>
     <t>None与2014-11-17胸部CT比较：1.左肺门至左肺下叶后段多发结节融合团块范围较前增大，较大层面现约61MM×37MM（IM29），原约54MM×29MM（IM30），仍包绕左上肺动脉干。左肺上叶胸膜上小结节同前，较大约6MM（IM47）。2.两肺气肿及弥漫肺大泡同前，较大肺大泡仍约56MM×55MM（IM36）。3.左肺门淋巴结较前相仿，仍约19MM×15MM（IM27）。纵隔、两侧锁骨下、腋上未见肿大淋巴结。4.两侧胸膜光滑，未见胸水。胸廓诸骨未见骨质破坏。5.扫及胃底大弯侧胃脾之间高强化结节同前，仍约20MM×19MM（IM57），请结合腹部检查。</t>
@@ -3767,10 +3767,10 @@
     <t>肝胆胰肾输尿管肾下腺及颈部未见占位肝肋上斜切115MM/（－），剑上纵切55MM/2指，肝区回声较密欠均，门脉主干内径10MM，左支内径7MM，流速0.20MM/s，主干及右左支血流通畅，为向肝血流，流速曲线正常，脾门处脾静脉内径4MM，血流通畅。肝静脉血流通畅。脾肋间切34MM/（－）。胆囊63MM×28MM，胆总管4MM。胰头17MM，胰体14MM，胰尾14MM。左肾110MM×40MM×43MM，肾盂分离（－），右肾106MM×47MM×46MM，肾盂分离（－）。两侧输尿管未见明显扩张。两侧肾下腺区未见明显肿块回声。CDFI示肝胆胰肾血流正常。两侧颌上、两侧颈血管旁及两侧锁骨下未见明显肿块回声。CDFI未见异常血流。</t>
   </si>
   <si>
-    <t>乙状结肠MT、肝脏转移综合治疗后病例，与2015-9-2本院PET/CT检查比较：1.右肺上叶内基底段转移；左肺下叶前段胸膜旁转移不除外；2.肝脏术区糖代谢增高，考虑为术后改变可能，请随访；肝包膜上积液吸收；余基本同前。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像，与2015-9-2本院PET/CT检查比较。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑未见明显糖代谢异常。CT平扫示右侧基底节区近岛叶处见一大小约为6.8MM×3.9MM的条形低密度影与前相仿，考虑为良性病变，其余脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂略增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。筛窦、蝶窦和两下颌窦粘膜增厚，考虑为慢性炎症。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示右肺上叶内基底段见糖代谢异常增高的结节，较前明显增大，糖代谢增高，大小约为28.6MM×23.2MM，最大SUV值约为8.2；左肺下叶前段胸膜上新增一不伴明显糖代谢异常增高的小结节，直径约为3.3MM；原左肺上叶外基底段小结节与前相仿，直径小于5.0MM；两肺见少许条索影及钙化灶；两肺门及纵隔未见糖代谢异常增高或肿大淋巴结；两侧胸膜无增厚；两侧胸腔无积液；心脏无明显增大；两侧腋窝无殊；左侧肋膈角见不伴糖代谢异常增高的淋巴结，大小约为5.0MM×4.2MM，与前相仿。腹部PET/CT图像示肝脏转移术后，左叶术区切缘见条片状糖代谢异常增高的稍低密度灶，早期及延迟1.5h显像最大SUV值约为5.7和12.1，滞留指数112.2%；肝尾状叶术区延迟相糖代谢略增高，最大SUV值约为2.9；余肝脏实质内见多发不伴糖代谢异常增高的囊性低密度影，较大者位于左侧膈顶，直径约为10.3MM；肝内外胆管无扩张；门腔静脉间见一枚不伴糖代谢异常增高的淋巴结伴钙化，较前缩小，大小约为7.5MM×6.3MM，考虑为慢性炎症；胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；脾脏不大，密度均，未见明显占位；右肾见不伴糖代谢异常增高的囊性灶，大小约为5.0MM×4.2MM，右侧肾盂内见致密影；左肾、胆囊、胰、两肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET/CT图像示乙状结肠MT根治术后，吻合口见高密度缝线影，局部糖代谢轻度增高，最大SUV值约为5.8，肠壁未见明显增厚，考虑为术后改变。膀胱充盈可，内显像剂生理性积聚，壁光滑无增厚；两侧精囊腺形态可；前列腺形态饱满，密度均；两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像所示诸骨未见异常糖代谢增强或骨质破坏吸收征象。</t>
-  </si>
-  <si>
-    <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，33，20-37，右房内径，31，19-40，右室舒张末内径，41，35-56，右室收缩末内径，24，23-35，室间隔厚度，9，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒测及轻微主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约27MMHg，。，三、，右心功能测定：，LVEF：73%；二尖瓣血流图示E/A，&amp;lt；，1；DT：194MMs，四、组织多普勒测定：，DTI示S波峰值：13CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
+    <t>乙状结肠MT、肝脏转移综合治疗后病例，与2015-9-2本院PET/CT检查比较：_x0004_1.右肺上叶内基底段转移；左肺下叶前段胸膜旁转移不除外；_x0004_2.肝脏术区糖代谢增高，考虑为术后改变可能，请随访；肝包膜上积液吸收；余基本同前。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像，与2015-9-2本院PET/CT检查比较。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑未见明显糖代谢异常。CT平扫示右侧基底节区近岛叶处见一大小约为6.8MM×3.9MM的条形低密度影与前相仿，考虑为良性病变，其余脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂略增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。筛窦、蝶窦和两下颌窦粘膜增厚，考虑为慢性炎症。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示右肺上叶内基底段见糖代谢异常增高的结节，较前明显增大，糖代谢增高，大小约为28.6MM×23.2MM，最大SUV值约为8.2；左肺下叶前段胸膜上新增一不伴明显糖代谢异常增高的小结节，直径约为3.3MM；原左肺上叶外基底段小结节与前相仿，直径小于5.0MM；两肺见少许条索影及钙化灶；两肺门及纵隔未见糖代谢异常增高或肿大淋巴结；两侧胸膜无增厚；两侧胸腔无积液；心脏无明显增大；两侧腋窝无殊；左侧肋膈角见不伴糖代谢异常增高的淋巴结，大小约为5.0MM×4.2MM，与前相仿。腹部PET/CT图像示肝脏转移术后，左叶术区切缘见条片状糖代谢异常增高的稍低密度灶，早期及延迟1.5h显像最大SUV值约为5.7和12.1，滞留指数112.2%；肝尾状叶术区延迟相糖代谢略增高，最大SUV值约为2.9；余肝脏实质内见多发不伴糖代谢异常增高的囊性低密度影，较大者位于左侧膈顶，直径约为10.3MM；肝内外胆管无扩张；门腔静脉间见一枚不伴糖代谢异常增高的淋巴结伴钙化，较前缩小，大小约为7.5MM×6.3MM，考虑为慢性炎症；胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；脾脏不大，密度均，未见明显占位；右肾见不伴糖代谢异常增高的囊性灶，大小约为5.0MM×4.2MM，右侧肾盂内见致密影；左肾、胆囊、胰、两肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET/CT图像示乙状结肠MT根治术后，吻合口见高密度缝线影，局部糖代谢轻度增高，最大SUV值约为5.8，肠壁未见明显增厚，考虑为术后改变。膀胱充盈可，内显像剂生理性积聚，壁光滑无增厚；两侧精囊腺形态可；前列腺形态饱满，密度均；两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像所示诸骨未见异常糖代谢增强或骨质破坏吸收征象。</t>
+  </si>
+  <si>
+    <t>静息状态上超声心动图未见异常常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,33,20-37,右房内径,31,19-40,右室舒张末内径,41,35-56,右室收缩末内径,24,23-35,室间隔厚度,9,6-11,右室后壁厚度,8,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。,3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒测及轻微主动脉瓣反流。,4、左房室不大，肺动脉不增宽，,连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约27MMHg,。,三、,右心功能测定：,LVEF:73%；二尖瓣血流图示E/A,&amp;lt;,1;DT:194MMs,四、组织多普勒测定：,DTI示S波峰值:13CM/s;E'/A',&amp;lt;,1,五、结论：,</t>
   </si>
   <si>
     <t>左肺癌、外院化疗后复发、再次化疗4程后复查，同2015-4-19日CT对比，左下肺病灶较前无大变化；纵隔及左肺门淋巴结较前增大，右左头臂静脉受压。左肺中叶外侧段节段性不张，右肺舌段少许纤维灶，下腔静脉内充盈缺损，考虑血栓形成。颅脑未见明确异常。左肺癌、外院化疗后复发、再次化疗4程后复查，同2015-4-29日CT对比：左肺下叶前段见一软组织结节灶，大小约14MM×10MM，呈分叶状，边界欠清，边缘见长条索灶，牵拉左侧胸膜，信号不均匀，增强扫描不均匀强化。左肺中叶外侧段见条片状稍高信号，边界不清，内见充气支气管，增强扫描强化明显。右肺下叶上舌段见少许条索灶，边界不清。左肺下叶、中叶支气管稍变窄，气管及右主支气管及分支通畅。左下上气管旁、左肺门见多发肿大淋巴结，相互融合成团，最大者约35MM×44MM，边界欠清，密度不均匀，增强扫描不均匀强化。右左头臂静脉受压，下腔静脉内见充盈缺损，大小约7MM×8MM，两侧胸腔未见积液。右侧胸膜无增厚、粘连。大脑各叶、小脑及脑干形态正常，信号均匀，增强后亦未见异常信号区。各脑室及脑池大小、形态未见异常；大脑中线结构未见移位，未见占位性病变。颅盖骨骨质未见破坏。扫描范围内所见两侧下颌窦、筛窦、蝶窦、乳突充气良好，骨壁完整。两眼球后未见占位性病变。</t>
@@ -3794,7 +3794,7 @@
     <t>右上肺癌术后，与2012-5-25片对比：右肺斑片影，考虑炎症可能性大。左肺中叶病灶，较前无明显变化，考虑炎症。右下肺叶前段、左肺散在类结节，考虑增殖灶可能性大，建议随诊。右侧胸膜稍增厚，右侧胸腔少量包裹性积液。肝多发囊肿。右肾囊肿。右上肺癌术后，与2012-5-25片对比：右上肺叶术后缺如，右侧胸廓稍缩小，右残肺充气良好，左肺中叶纹理增粗、紊乱，见多发斑片影及条索影，边界欠清，较前未见明显变化。右肺见斑片状影，边界不清，局部肺纹理增多紊乱，其内可见“支气管气象”。右下肺叶前段、左肺见散在类结节灶，直径约2~3MM，边界欠清，轮廓欠光整。气管、所示支气管及其分枝通畅，未见明显软组织肿物或受压变窄。纵隔、两肺门未见明显肿大淋巴结。右侧胸稍增厚，右侧胸腔少量积液，局部包裹。左侧胸腔未见积液，左侧胸膜未见明显增厚。肝脏形态、大小正常，各叶比例在正常范围内，外形轮廓光整，密度不均匀，肝内见多个类圆形低密度灶，最大者约为18MM×21MM，边界清楚，增强扫描未见明显强化。肝内外胆管未见扩张。胆囊大小正常，壁光滑，未见异常密度灶。脾脏大小正常，密度均匀。胰腺大小、形态、密度未见异常。右肾见多个类圆形囊性灶，最大者约为6MM×3MM，边界清，增强扫描未见强化。左肾及两侧肾下腺未见异常。腹膜后未见明显肿大淋巴结。扫描层面内未见明显骨质破坏。</t>
   </si>
   <si>
-    <t>颅脑未见明确占位病变。右上肺肿物，考虑为肺癌。肝囊肿，肾囊肿。大脑各叶、小脑及脑干密度及形态未见异常。脑回形态正常，脑沟未见明显增宽、变窄，各脑室及脑池大小、形态未见异常。大脑中线结构未见移位，未见占位性病变。颅盖骨骨质未见破坏。右上肺可见软组织肿物影，大小为为51MM×35MM，可见分叶，增强扫描可见强化；左肺纹理清晰，未见结节影。气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。两侧肺门及纵隔未见明确肿大淋巴结。两侧胸腔未见积液。胸膜未见增厚。扫描层次中胸椎、胸壁骨及软组织未见异常。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，可见囊性灶，大小为诶3至5MM。肝内胆管正常，其内未见结石影。胆囊大小正常，其内未见结石影。胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。左肾可见囊肿，大小为6至20MM，右肾所见正常。两肾下腺所见正常。腹膜后未见肿大淋巴结。</t>
+    <t>颅脑未见明确占位病变。_x0004_右上肺肿物，考虑为肺癌。_x0004_肝囊肿，肾囊肿。大脑各叶、小脑及脑干密度及形态未见异常。脑回形态正常，脑沟未见明显增宽、变窄，各脑室及脑池大小、形态未见异常。大脑中线结构未见移位，未见占位性病变。颅盖骨骨质未见破坏。_x0004_右上肺可见软组织肿物影，大小为为51MM×35MM,可见分叶，增强扫描可见强化；左肺纹理清晰，未见结节影。气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。两侧肺门及纵隔未见明确肿大淋巴结。两侧胸腔未见积液。胸膜未见增厚。扫描层次中胸椎、胸壁骨及软组织未见异常。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，可见囊性灶，大小为诶3至5MM。肝内胆管正常，其内未见结石影。胆囊大小正常，其内未见结石影。胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。左肾可见囊肿，大小为6至20MM，右肾所见正常。两肾下腺所见正常。腹膜后未见肿大淋巴结。</t>
   </si>
   <si>
     <t>51MM×35MM</t>
@@ -3809,7 +3809,7 @@
     <t>16MM</t>
   </si>
   <si>
-    <t>颈段及部分胸下段局限性增厚，考虑食管癌。左侧气管食管沟肿大淋巴结，考虑转移。两肺未见明确病变。下腹部未见明确病变。两颈II区~V区数个小淋巴结，考虑反应性淋巴结可能大。左侧下颌窦炎。颈段及部分胸下段食管局限性管壁增厚，最厚约15MM，纵径约32MM，局部管腔狭窄，增强后较明显强化，病灶部分与气管后缘分界欠清楚，邻近左侧气管食管沟见肿大淋巴结，最大约15MM×14MM，与病灶分界不清，增强后较明显强化。两肺纹理清晰，肺内未见实质性病变。余纵隔及两肺门未见明确肿大淋巴结，气管及支气管分支通畅。两侧胸腔未见积液。两侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整。肝实质密度均匀，增强后未见异常强化，肝门区正常。门静脉主干及其分支未见异常。胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。胰腺、脾脏大小、形态正常，密度均匀，增强后未见异常强化灶。两肾及两肾下腺形态、大小、密度未见异常。胃右血管旁、腹腔干、腹主动脉未见明确肿大淋巴结。颈部结构清晰，各血管充盈良好。甲状腺两叶及峡部形态正常，密度均匀，未见占位性病变。喉咽腔形态正常，两侧真假声带未见增厚，前联合未见增厚，梨状窝对称。两侧颌上腺、腮腺大小形态正常，密度均匀。颈部肌群排列对称，密度均匀，肌间隙未见明显异常。两颈II区~V区见数个小淋巴结，最大约9MM×8MM，边界清，密度均匀，增强后均匀强化。扫描所见左侧下颌窦粘膜增厚。扫描所见骨质未见明确破坏征象。</t>
+    <t>颈段及部分胸下段局限性增厚，考虑食管癌。左侧气管食管沟肿大淋巴结，考虑转移。两肺未见明确病变。下腹部未见明确病变。两颈II区~V区数个小淋巴结，考虑反应性淋巴结可能大。左侧下颌窦炎。颈段及部分胸下段食管局限性管壁增厚，最厚约15MM,纵径约32MM，局部管腔狭窄，增强后较明显强化，病灶部分与气管后缘分界欠清楚，邻近左侧气管食管沟见肿大淋巴结，最大约15MM×14MM，与病灶分界不清，增强后较明显强化。两肺纹理清晰，肺内未见实质性病变。余纵隔及两肺门未见明确肿大淋巴结，气管及支气管分支通畅。两侧胸腔未见积液。两侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整。肝实质密度均匀，增强后未见异常强化，肝门区正常。门静脉主干及其分支未见异常。胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。胰腺、脾脏大小、形态正常，密度均匀，增强后未见异常强化灶。两肾及两肾下腺形态、大小、密度未见异常。胃右血管旁、腹腔干、腹主动脉未见明确肿大淋巴结。颈部结构清晰，各血管充盈良好。甲状腺两叶及峡部形态正常，密度均匀，未见占位性病变。喉咽腔形态正常，两侧真假声带未见增厚，前联合未见增厚，梨状窝对称。两侧颌上腺、腮腺大小形态正常，密度均匀。颈部肌群排列对称，密度均匀，肌间隙未见明显异常。两颈II区~V区见数个小淋巴结，最大约9MM×8MM，边界清，密度均匀，增强后均匀强化。扫描所见左侧下颌窦粘膜增厚。扫描所见骨质未见明确破坏征象。</t>
   </si>
   <si>
     <t>左下肺叶切除术后，右对比2012-8-21片：左侧斜裂胸膜较明显增厚，所见较前变化不大。右上肺膈面下小类结节灶，大致同前，考虑增殖灶可能大。两锁下及纵隔内数个小淋巴结，大致同前。肝内多个小类圆形低密度区，考虑小囊肿可能大。扫描所见胃底体下部大弯侧胃壁结节，间质瘤？建议进一步检查。左下肺叶切除术后，右对比2012-8-21片：左肺体积缩小，纵隔稍向左侧偏移，左中肺残见少许索条影，左侧斜裂不均匀增厚，内见条状高密度金属影，较前变化不大。右下肺透亮度稍增高，见多发小圆形透亮区，大致同前。右上肺膈面下见小类结节灶，大小约4MM×5MM，边界清，大致同前。余两肺未见明显病变。气管及右肺各叶支气管分枝通畅，未见明显软组织肿物或受压变窄。两锁下、血管前、两上气管旁、主动脉旁、隆突上可见多个淋巴结，最大者短径约为8MM，边界尚清，较前变化不大。两侧胸腔未见积液。左侧胸膜稍增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内见散在数个小类圆形低密度区，直径约3MM~6MM，边界清，增强后未见明确强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描所见胃底体下部大弯侧胃壁见结节状突起，大小约9MM×10MM，增强后较明显强化。左侧第6肋骨质不连续，呈术后改变。余扫描范围内胸椎、胸壁骨及软组织未见异常。</t>
@@ -3821,7 +3821,7 @@
     <t>左下肺癌术后改变。左上肺节段性不张。左肺中上叶斑片、条索影，考虑炎症。左侧少量胸腔积液。少量心包积液。左侧胸膜稍增厚、粘连。左乳外下象限小结节，考虑良性病变，同前相仿。肝囊肿。左下肺癌术后，左下肺缺失，支气管残端未见明显异常。左肺上叶肺门旁见片状肺不张组织，强化明显，左肺中叶及上叶可见散在斑片、索条状影，边界欠清。右肺未见明显实质性病变。气管及其余支气管尚通畅。纵隔、两肺门未见明显肿大淋巴结。左侧胸腔少量积液，右侧未见胸腔积液。左侧胸膜稍增厚、粘连，右侧胸膜未见增厚。心包见少量液体密度影。左侧乳腺外下象限内见强化小结节，大者直径约6MM，边界尚清。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内可见散在小囊状低密度灶，大者位于S5，直径约5MM，增强扫描未见强化。肝内胆管未见扩张。胆囊大小正常，胆总管未见扩张，其内未见结石影。肝门区结构未见异常。门静脉主干及分支未见充盈缺损。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。扫描范围内两肾未见明确异常。两肾下腺未见明确异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。所见骨质结构未见破坏征象。</t>
   </si>
   <si>
-    <t>右肺癌化疗后，对比2017-06-30片：右肺上叶背段肺门旁少许软组织灶，较前未见明显变化。右肺上叶背段胸膜上病变，较前相仿；其周围类结节灶，考虑转移可能性大，大致同前。纵隔、右肺门、胃右动脉旁淋巴结转移，隆突上淋巴结侵犯食管并与食道相通，形成瘘道，新发。两肺肺气肿，少许纤维增殖灶，较前未见明显变化。肝多发小囊肿，较前未见明显变化。两肾小囊肿，较前未见明显变化。右肺癌化疗后，对比2017-06-30片：右肺上叶背段肺门旁见斑片状软组织灶，边界不清，形态不规则，与肿大淋巴结分界不清，大小难以准确测量，增强扫描较明显强化，较前相仿。右肺上叶背段胸膜上见不规则片状高密度灶，范围约为33MM×45MM，边界不清，密度不均匀，内见不规则空洞形成，增强扫描轻中度不均匀强化，较前相仿。右肺上叶背段病灶周围见类结节状、片状高密度灶，边界清楚，增强扫描见强化，大致同前。两肺下叶、左肺中叶、右肺上叶外基底段尚可见多发斑片状、条索状及类结节灶，边界欠清，较前未见明显变化。两肺纹理稀疏，见多发小类圆形无肺纹理区。右肺上叶背段支气管腔稍狭窄，气管及余支气管分支通畅。右上气管旁、主肺动脉窗、隆突上、右肺门、胃右动脉旁见多个淋巴结，较大者约为26MM×26MM，边界不清，增强扫描见不均匀明显强化，隆突上淋巴结侵犯食管并与食道相通。血管前、左上气管旁见数个小淋巴结，较大者短径约6MM，较前未见明显变化。两侧胸腔未见积液。两侧胸膜粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝实质见数个小类圆形低密度病变，边界清晰，较大者长径约15MM，增强扫描未见强化，较前未见明显变化。肝内胆管正常，胆囊大小正常，胆总管未见扩张，其内未见结石。肝门区结构未见异常。门静脉未见充盈缺损。脾及胰腺大小、形态正常，密度均匀。两肾实质见数个小类圆形低密度病灶，边界清晰，较大者直径约4MM，增强扫描未见强化。两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围内骨质未见明显破坏。</t>
+    <t>右肺癌化疗后，对比2017-06-30片：_x0004_右肺上叶背段肺门旁少许软组织灶，较前未见明显变化。_x0004_右肺上叶背段胸膜上病变，较前相仿；其周围类结节灶，考虑转移可能性大，大致同前。_x0004_纵隔、右肺门、胃右动脉旁淋巴结转移，隆突上淋巴结侵犯食管并与食道相通，形成瘘道，新发。_x0004_两肺肺气肿，少许纤维增殖灶，较前未见明显变化。_x0004_肝多发小囊肿，较前未见明显变化。两肾小囊肿，较前未见明显变化。右肺癌化疗后，对比2017-06-30片：_x0004_右肺上叶背段肺门旁见斑片状软组织灶，边界不清，形态不规则，与肿大淋巴结分界不清，大小难以准确测量，增强扫描较明显强化，较前相仿。右肺上叶背段胸膜上见不规则片状高密度灶，范围约为33MM×45MM，边界不清，密度不均匀，内见不规则空洞形成，增强扫描轻中度不均匀强化，较前相仿。右肺上叶背段病灶周围见类结节状、片状高密度灶，边界清楚，增强扫描见强化，大致同前。两肺下叶、左肺中叶、右肺上叶外基底段尚可见多发斑片状、条索状及类结节灶，边界欠清，较前未见明显变化。两肺纹理稀疏，见多发小类圆形无肺纹理区。右肺上叶背段支气管腔稍狭窄，气管及余支气管分支通畅。_x0004_右上气管旁、主肺动脉窗、隆突上、右肺门、胃右动脉旁见多个淋巴结，较大者约为26MM×26MM，边界不清，增强扫描见不均匀明显强化，隆突上淋巴结侵犯食管并与食道相通。血管前、左上气管旁见数个小淋巴结，较大者短径约6MM，较前未见明显变化。两侧胸腔未见积液。两侧胸膜粘连。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝实质见数个小类圆形低密度病变，边界清晰，较大者长径约15MM，增强扫描未见强化，较前未见明显变化。肝内胆管正常，胆囊大小正常，胆总管未见扩张，其内未见结石。肝门区结构未见异常。门静脉未见充盈缺损。脾及胰腺大小、形态正常，密度均匀。两肾实质见数个小类圆形低密度病灶，边界清晰，较大者直径约4MM，增强扫描未见强化。两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围内骨质未见明显破坏。</t>
   </si>
   <si>
     <t>33MM×45MM</t>
@@ -3836,13 +3836,13 @@
     <t>1.7CM×2.4CM</t>
   </si>
   <si>
-    <t>1、两房增大伴轻度二尖瓣反流2、升主动脉增宽，主动脉瓣钙化常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，31，20-37，右房内径，50，19-40，右室舒张末内径，49，35-56，右室收缩末内径，34，23-35，室间隔厚度，11，6-11，右室后壁厚度，11，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房增大，右室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻度二尖瓣反流。，3、主动脉根部不增宽，升主动脉增宽为38MM，主动脉瓣钙化，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房增大，左室不大，肺动脉不增宽，，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约38MMHg，。，三、，右心功能测定：，FS：30%；LVEF：60%；二尖瓣血流图示E、A单峰，四、组织多普勒测定：，DTI示S波峰值：11.9CM/s，五、结论：，</t>
+    <t>1、两房增大伴轻度二尖瓣反流2、升主动脉增宽，主动脉瓣钙化常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,31,20-37,右房内径,50,19-40,右室舒张末内径,49,35-56,右室收缩末内径,34,23-35,室间隔厚度,11,6-11,右室后壁厚度,11,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房增大，右室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻度二尖瓣反流。,3、主动脉根部不增宽，升主动脉增宽为38MM，主动脉瓣钙化，开放不受限，彩色多普勒未测及主动脉瓣反流。,4、左房增大，左室不大，肺动脉不增宽，,连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约38MMHg,。,三、,右心功能测定：,FS:30%;LVEF:60%；二尖瓣血流图示E、A单峰,四、组织多普勒测定：,DTI示S波峰值:11.9CM/s,五、结论：,</t>
   </si>
   <si>
     <t>左肺下叶中央型肺癌化疗后复查，左肺门下极肿块较前明显缩小，左下肺节段性不张基本复张，左下肺阻塞性炎症较前明显吸收好转。左肺门小淋巴结，较前缩小。脂肪肝。肝S4稍低密度病灶，性质待定，肝囊肿？肝转移瘤？大致同前，建议MR进一步检查。两肾盂小结石，右肾盂旁囊肿，较前相仿。左肺癌化疗后复查，与2016.10.22片比较：左肺下叶近肺门区见边界不清之软组织密度灶，包绕左肺下叶支气管，较前明显缩小、好转，现病灶轮廓不清，左肺下叶支气管较前通畅，左下肺不张之肺组织基本复张，病灶远侧斑片状及团片状影较前明显减少。余两肺纹理清晰，肺内未见实质性病变。气管及余支气管分支通畅。左肺门区见一淋巴结，边界不清，较前缩小，密度较前减低。右肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜无增厚、粘连。扫描层次中胸椎、胸壁骨及软组织未见异常。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S4见一稍低密度病灶，大小约为7MM×11MM，边界不清，增强后强化不明显，较前未见明显变化。余肝实质未见明显异常密度灶，增强扫描未见异常强化影。肝脏密度普遍减低，低于脾脏密度。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾盂各见一斑点状致密影，右肾盂旁见一囊性灶，大小约为13MM×14MM，边界清楚，增强后未见强化，右侧肾盂稍受压，较前相仿。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。所见骨质未见明显破坏征象。</t>
   </si>
   <si>
-    <t>肺MT靶向药物治疗后，与2016-5-31本院PET/CT图像比较：1.原右肺下叶主动脉弓旁病灶和右侧颈根部、锁骨区、右侧胸壁转移淋巴结基本消失；左侧锁骨区转移淋巴结部分消失，部分糖代谢较前稍增高；纵隔转移淋巴结总体较前减少、缩小，糖代谢较前减低；新增右肺门旁糖代谢增高的淋巴结；2.新增左侧第12后肋骨折；余同前相仿。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行PET/CT断层显像，与2016-5-31本院PET/CT图像比较。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET/CT图像示眼球、眼眶内未见明显糖代谢异常或占位。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶；新增左侧外耳道局部糖代谢增高，最大SUV值约为1.9，考虑为炎症可能。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET/CT图像示右侧颈根部及锁骨区糖代谢异常增高的肿大淋巴结基本消失，局部可见直径均小于6.0MM的小淋巴结；左侧锁骨区见糖代谢增高的淋巴结，最大SUV值约为3.9，大小约为7.3MM×4.6MM，部分淋巴结糖代谢较前稍增高；口咽、喉咽部和甲状腺无殊。胸部PET/CT图像示右肺下叶尖后段主动脉弓旁糖代谢异常增高的结节状未见显示；左肺野内多发不伴明显糖代谢增高的小结节，直径均小于3.0MM，部分结节消失，余与前相仿；右肺上叶内前基底段和后基底段胸膜上结节未见显示；右侧胸壁糖代谢异常增高的淋巴结消失；新增右肺门旁糖代谢增高的淋巴结，最大SUV值约为3.2，大小约为9.1MM×6.8MM；余前片所示纵隔内淋巴结总体较前减少、缩小，糖代谢较前减低，糖代谢较高且较大者位于主肺动脉窗，最大SUV值约为6.1，大小约为18.0MM×11.0MM；两侧胸腔无积液；心脏无明显增大。腹部PET图像示胃部充盈欠佳，胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内见直径为3.0MM的囊性灶；肝内外胆管无扩张；脾周见副脾结节影；脾脏不大，密度均，未见明显占位；右肾下极见直径为47.8MM的囊性灶，左肾中部见一直径约为6.5MM囊性灶，均与前相仿；右侧肾下腺局部增粗，见一直径约为6.0MM稍低密度灶，与前相仿；胆囊、胰、左肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈可；前列腺增大，密度尚均匀；两侧精囊腺无殊；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示新增左侧第12后肋骨皮质连续性中断，伴糖代谢异常增高，最大SUV值约为3.9；余所示诸骨未见明显糖代谢异常增高灶或骨质破坏。</t>
+    <t>肺MT靶向药物治疗后，与2016-5-31本院PET/CT图像比较：1.原右肺下叶主动脉弓旁病灶和右侧颈根部、锁骨区、右侧胸壁转移淋巴结基本消失；左侧锁骨区转移淋巴结部分消失，部分糖代谢较前稍增高；纵隔转移淋巴结总体较前减少、缩小，糖代谢较前减低；新增右肺门旁糖代谢增高的淋巴结；_x0004_2.新增左侧第12后肋骨折；余同前相仿。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行PET/CT断层显像，与2016-5-31本院PET/CT图像比较。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET/CT图像示眼球、眼眶内未见明显糖代谢异常或占位。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶；新增左侧外耳道局部糖代谢增高，最大SUV值约为1.9，考虑为炎症可能。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET/CT图像示右侧颈根部及锁骨区糖代谢异常增高的肿大淋巴结基本消失，局部可见直径均小于6.0MM的小淋巴结；左侧锁骨区见糖代谢增高的淋巴结，最大SUV值约为3.9，大小约为7.3MM×4.6MM，部分淋巴结糖代谢较前稍增高；口咽、喉咽部和甲状腺无殊。胸部PET/CT图像示右肺下叶尖后段主动脉弓旁糖代谢异常增高的结节状未见显示；左肺野内多发不伴明显糖代谢增高的小结节，直径均小于3.0MM，部分结节消失，余与前相仿；右肺上叶内前基底段和后基底段胸膜上结节未见显示；右侧胸壁糖代谢异常增高的淋巴结消失；新增右肺门旁糖代谢增高的淋巴结，最大SUV值约为3.2，大小约为9.1MM×6.8MM；余前片所示纵隔内淋巴结总体较前减少、缩小，糖代谢较前减低，糖代谢较高且较大者位于主肺动脉窗，最大SUV值约为6.1，大小约为18.0MM×11.0MM；两侧胸腔无积液；心脏无明显增大。腹部PET图像示胃部充盈欠佳，胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内见直径为3.0MM的囊性灶；肝内外胆管无扩张；脾周见副脾结节影；脾脏不大，密度均，未见明显占位；右肾下极见直径为47.8MM的囊性灶，左肾中部见一直径约为6.5MM囊性灶，均与前相仿；右侧肾下腺局部增粗，见一直径约为6.0MM稍低密度灶，与前相仿；胆囊、胰、左肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈可；前列腺增大，密度尚均匀；两侧精囊腺无殊；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示新增左侧第12后肋骨皮质连续性中断，伴糖代谢异常增高，最大SUV值约为3.9；余所示诸骨未见明显糖代谢异常增高灶或骨质破坏。</t>
   </si>
   <si>
     <t>右乳退化不全；肝脂肪浸润；肝左叶钙化灶；胆总管增宽左侧乳腺未显示。右侧乳腺导管增多，腺体结构尚正常，未见明显肿块回声。彩色多普勒示其内未见异常彩色血流。两侧腋窝未见明显肿块。CDFI示血流分布尚正常。肝肋上斜切125MM/（－），剑上纵切56MM/2指，肝区回声密集增强，肝左叶可见6MM强回声团块，门脉主干内径10MM，脾肋间切28MM/（－）。胆囊未显示，胆总管10MM。胰头14MM，胰体14MM，胰尾16MM。左肾101MM×48MM×45MM，肾盂分离(-)，右肾102MM×45MM×47MM，肾盂分离(-)。两侧输尿管未见明显扩张。CDFI肝胰肾血流正常。两侧肾下腺区未见明显肿块回声。</t>
@@ -3851,22 +3851,22 @@
     <t>左乳实质占位-考虑MT可能；两侧腋窝见淋巴结，左侧腋窝淋巴结多枚MT浸润可能；两侧颈部见淋巴结；肝脂肪浸润肝肋上斜切119MM/（－），剑上纵切59MM/2指，肝区回声密集欠均，门脉主干内径10MM，左支内径7MM，流速0.21MM/s，主干及右左支血流通畅，为向肝血流，流速曲线正常，脾门处脾静脉内径5MM，血流通畅。肝静脉血流通畅。脾肋间切53MM/（－）。两侧颌上、两侧颈血管旁见数枚低回声区，左侧最大10MM×5MM，右侧最大9MM×6MM，两侧锁骨下未见明显肿块回声。CDFI未见异常血流。两侧乳腺腺体结构尚正常，左乳10点钟处见27MM×22MM低回声区，形态不规则，CDFI示其内见点线状彩色血流。右乳未见明显肿块回声。左侧腋窝见数个低回声区，最大28MM×22MM，CDFI示其内见点线状彩色血流。右侧腋窝见数个高回声区，最大11MM×6MM，CDFI示其内未见明显彩色血流。</t>
   </si>
   <si>
-    <t>右肺下叶团块状病灶，考虑肺癌，较前稍增大。两肺及胸膜多发小结节灶，考虑转移瘤，较前增多、增大。右肺门淋巴结，较前增大，考虑转移瘤。主肺动脉窗、右侧锁骨下、左下气管旁、两侧上气管旁及左肺门淋巴结，较前变化不明显。右侧第11肋溶骨性骨质破坏，考虑转移可能性大。肝S3病变，考虑转移瘤。肝内弥漫分布低密度灶，囊肿？大致同前。右肾囊肿。甲状腺右叶结节，较前未见明显变化。右肺癌多发转移化疗后，对比2017-4-14片：两肺纹理增粗，右肺下叶见团块状病灶，形态不规则，边缘毛糙，见多发短毛刺，病灶大小约37MM×50MM，中心见片状低密度坏死，增强后明显不均匀强化，较前稍增大；两肺及胸膜见多发类结节灶，大者直径约7MM，较前增多、增大。气管及支气管分支通畅。右肺门及主肺动脉窗见多个淋巴结，部分相互融合，最大者位于右肺门旁，短径约17MM，不均匀强化，较前增大。右侧锁骨下、左侧下、两上气管旁、隆突上及左肺门见都佛小淋巴结，短径约3~6MM，较前变化不明显。两侧胸腔少量积液。甲状腺右叶见结节状稍低密度灶，大小约13MM×14MM，轻中度不均匀强化。肝脏形态欠规则，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝内见弥漫分布低密度灶，大部分边界尚清楚，部分边界欠清楚，大小约3~10MM，未见明显强化。肝S3见结节状稍低密度病变，边界不清，直径约16MM，增强扫描轻度强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见低密度灶，大小约36MM×37MM，未见强化，左肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。右侧第11肋腋段见溶骨性骨质破坏，骨皮质欠完整。余扫描范围未见明显骨质破坏改变。</t>
-  </si>
-  <si>
-    <t>None肺癌化疗后复查，对比2017-11-10CT片：右肺门区肿块，大小约35MM×20MM，较前缩小；右肺节段性不张，范围较前缩小；纵隔、右肺门淋巴结，较大者短径11MM，部分较前稍缩小；右侧胸腔积液，部分包裹，较前稍吸收、减少；右侧胸膜不均匀增厚，部分呈结节状增厚，较前未见明显变化；左肺下叶前段片状影，考虑炎性病变，大致同前；左肺多发肺大泡，大致同前；肝内多发囊肿，较大者位于S5，直径35MM；右肾下腺结节，直径10MM，转移待排，较前无大变化；两肾囊肿，较大者直径13MM；右肾结节，考虑错构瘤，大小约7MM×9MM×16MM，大致同前；右肾周围条索影，考虑炎症改变；盆腔未见明显异常。左侧第3前肋、右侧第8肋骨腋段见片状及结节状高密度影，较前未见明显变化。</t>
+    <t>右肺下叶团块状病灶，考虑肺癌，较前稍增大。_x0004_两肺及胸膜多发小结节灶，考虑转移瘤，较前增多、增大。_x0004_右肺门淋巴结，较前增大，考虑转移瘤。主肺动脉窗、右侧锁骨下、左下气管旁、两侧上气管旁及左肺门淋巴结，较前变化不明显。_x0004_右侧第11肋溶骨性骨质破坏，考虑转移可能性大。_x0004_肝S3病变，考虑转移瘤。_x0004_肝内弥漫分布低密度灶，囊肿？大致同前。右肾囊肿。_x0004_甲状腺右叶结节，较前未见明显变化。右肺癌多发转移化疗后，对比2017-4-14片：_x0004_两肺纹理增粗，右肺下叶见团块状病灶，形态不规则，边缘毛糙，见多发短毛刺，病灶大小约37MM×50MM，中心见片状低密度坏死，增强后明显不均匀强化，较前稍增大；两肺及胸膜见多发类结节灶，大者直径约7MM，较前增多、增大。_x0004_气管及支气管分支通畅。_x0004_右肺门及主肺动脉窗见多个淋巴结，部分相互融合，最大者位于右肺门旁，短径约17MM，不均匀强化，较前增大。右侧锁骨下、左侧下、两上气管旁、隆突上及左肺门见都佛小淋巴结，短径约3~6MM，较前变化不明显。两侧胸腔少量积液。_x0004_甲状腺右叶见结节状稍低密度灶，大小约13MM×14MM，轻中度不均匀强化。_x0004_肝脏形态欠规则，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝内见弥漫分布低密度灶，大部分边界尚清楚，部分边界欠清楚，大小约3~10MM，未见明显强化。肝S3见结节状稍低密度病变，边界不清，直径约16MM，增强扫描轻度强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见低密度灶，大小约36MM×37MM，未见强化，左肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_右侧第11肋腋段见溶骨性骨质破坏，骨皮质欠完整。余扫描范围未见明显骨质破坏改变。</t>
+  </si>
+  <si>
+    <t>None肺癌化疗后复查，对比2017-11-10CT片：_x0004_右肺门区肿块，大小约35MM×20MM，较前缩小；_x0004_右肺节段性不张，范围较前缩小；_x0004_纵隔、右肺门淋巴结，较大者短径11MM，部分较前稍缩小；_x0004_右侧胸腔积液，部分包裹，较前稍吸收、减少；_x0004_右侧胸膜不均匀增厚，部分呈结节状增厚，较前未见明显变化；_x0004_左肺下叶前段片状影，考虑炎性病变，大致同前；_x0004_左肺多发肺大泡，大致同前；_x0004_肝内多发囊肿，较大者位于S5，直径35MM；_x0004_右肾下腺结节，直径10MM，转移待排，较前无大变化；_x0004_两肾囊肿，较大者直径13MM；_x0004_右肾结节，考虑错构瘤，大小约7MM×9MM×16MM，大致同前；右肾周围条索影，考虑炎症改变；_x0004_盆腔未见明显异常。_x0004_左侧第3前肋、右侧第8肋骨腋段见片状及结节状高密度影，较前未见明显变化。</t>
   </si>
   <si>
     <t>肺癌放化疗后：左肺门旁病灶较前稍缩小。左下肺、左上肺斑片影，较前未见明显变化。右肺下叶少量纤维增殖灶，大致同前。两侧锁骨下窝、纵隔及左肺门淋巴结，较前变化不明显。脑多发缺血灶。肺癌放化疗后复查，对比2016-10-18片：左肺门旁见少量软组织信号灶，边界欠清，病灶包绕左肺下叶支气管，范围难以准确测量，较前稍缩小；左肺下叶及左肺上叶见多发斑片灶，边界不清，部分病灶见空气支气管征，与前片对比，病灶未见明显变化。右肺下叶见少许条索影及类结节灶，大致同前。两侧锁骨下窝、左下气管旁、左上气管旁及左肺门见多发淋巴结，部分相互融合，最大约18MM×16MM，较前变化不明显。两侧胸腔未见积液，两侧胸膜未见增厚。扫描范围未见明显骨质破坏征象。两侧大脑白质内见多个斑点状、小斑片状异常信号影，T1WI呈等或稍低信号，T2WI呈高信号，T2FLAIR高信号，增强后未见强化。小脑及脑干形态正常，信号均匀，增强后亦未见异常信号区。各脑室及脑池大小、形态未见异常。大脑中线结构未见移位，未见占位性病变。颅骨骨质未见破坏。扫描范围内所见两侧筛窦、下颌窦充气良好，骨壁完整。两眼球后未见占位性病变。</t>
   </si>
   <si>
-    <t>肺癌化疗前、全脑放疗后，与2017-05-08片对比：两肺下叶、右肺上叶背段多发结节，考虑转移可能性大，右下肺较大病变较前缩小，其余较前未见明显变化。两肺上叶少许纤维增殖钙化灶灶，大致同前。小叶中央型肺气肿。右侧叶间胸膜小结节状增厚，较前变化不明显。两肾下腺病变，较前缩小。原大脑多个结节未见明确显示，左侧小脑半球病灶范围较前变化不大。肺癌化疗前、全脑放疗后，与2017-05-08片对比：右肺下叶见金属致密影，其旁少许索条影，与邻近胸膜牵拉粘连。两肺下叶、右肺上叶背段多发类结节灶，最大者约为13MM×6MM，边界尚清，增强扫描见不均匀明显强化，邻近见少许条片及斑片影，右下肺较大病变较前缩小，其余较前变化不大。两肺上叶见少许条索状高密度灶及小类结节状致密灶，边界清楚。两肺见多个小类圆形无肺纹理区。气管及支气管分支通畅。纵隔及两肺门未见明显肿大淋巴结。两侧胸腔未见积液。右侧叶间胸膜见小结节状增厚，直径约为2MM。肝脏形态未见异常，各叶比例正常，其外形轮廓光整，肝实质密度尚均匀，未见异常强化。肝内胆管、胆总管未见扩张，内未见结石影。胆囊大小未见异常，其内未见结石影。肝门区未见异常。门静脉未见异常。脾、胰腺、两肾大小、形态未见异常，密度均匀。右肾下腺见一结节，大小约为27MM×18MM，边界清楚，轻中度强化，较前缩小。左肾下腺见结节，大小约为26MM×20MM，边界清楚，增强扫描见轻度强化，较前稍缩小。膀胱充盈良好，境界清楚。精囊大小、形态未见明显异常，密度均匀，膀胱精囊角存在。前列腺大小，形态未见异常，密度均匀。盆腔未见软组织肿块影。直肠境界清楚，壁不厚，未见明确异常密度灶。两侧髂血管旁、腹股沟未见肿大淋巴结。原左侧顶叶、右侧额叶、两侧枕叶病变现未见明确显示，左侧小脑半球见稍低密度病灶，边界清，大小约19MM×12MM，可见轻度强化，与前片对比，病灶范围变化不大。余脑实质密度均匀。各脑沟脑裂未见明显异常。扫描范围内骨质未见明确破坏征象。</t>
-  </si>
-  <si>
-    <t>肺癌化疗前、全脑放疗后，与2017-03-20片对比：两肺下叶、右肺上叶背段多发结节，考虑转移可能性大，部分较前稍增大，大部分较前未见明显变化。两肺上叶少许纤维增殖钙化灶灶，大致同前。小叶中央型肺气肿。右侧叶间胸膜小结节状增厚，较前变化不明显。两肾下腺病变，较前增大。大脑两侧及左侧小脑半球多发结节，病灶范围较前变化不大。肺癌化疗前、全脑放疗后，与2017-03-20片对比：右肺下叶见金属致密影，其旁少许索条影，与邻近胸膜牵拉粘连。两肺下叶、右肺上叶背段多发类结节灶，最大者约为19MM×12MM，边界尚清，增强扫描见不均匀明显强化，邻近见少许条片及斑片影，部分较前稍增大，大部分较前变化不大。两肺上叶见少许条索状高密度灶及小类结节状致密灶，边界清楚。两肺见多个小类圆形无肺纹理区。气管及支气管分支通畅。纵隔及两肺门未见明显肿大淋巴结。两侧胸腔未见积液。右侧叶间胸膜见小结节状增厚，直径约为2MM。肝脏形态未见异常，各叶比例正常，其外形轮廓光整，肝实质密度尚均匀，未见异常强化。肝内胆管、胆总管未见扩张，内未见结石影。胆囊大小未见异常，其内未见结石影。肝门区未见异常。门静脉未见异常。脾、胰腺、两肾大小、形态未见异常，密度均匀。右肾下腺见一结节，大小约为37MM×34MM，边界清楚，轻中度强化，较前增大。左肾下腺见结节，大小约为36MM×24MM，边界清楚，增强扫描见轻度强化，较前稍增大。膀胱充盈良好，境界清楚。精囊大小、形态未见明显异常，密度均匀，膀胱精囊角存在。前列腺大小，形态未见异常，密度均匀。盆腔未见软组织肿块影。直肠境界清楚，壁不厚，未见明确异常密度灶。两侧髂血管旁、腹股沟未见肿大淋巴结。左侧顶叶、右侧额叶、两侧枕叶及左侧小脑半球见多发结节，大者位于左侧小脑半球，大小约20MM×12MM，可见轻度强化，与前片对比，病灶范围变化不大，强化程度减低。余脑实质密度均匀。各脑沟脑裂未见明显异常。扫描范围内骨质未见明确破坏征象。</t>
-  </si>
-  <si>
-    <t>肺癌化疗后复查，较2017-4-18日CT片对比：右肺上叶背段病灶，符合肺癌，较前稍增大。右肺上叶阻塞性肺炎。右肺下叶舌段小片状灶，炎症可能，较前缩小，建议复查。左肺、右肺下叶纤维增殖钙化灶。右肺门多发淋巴结肿大，考虑转移，较前变化不大。肝右外叶与腹壁间隙结节，考虑转移淋巴结可能性大，大致同前。肝S7包膜上结节钙化灶。左肾下腺病灶，考虑转移瘤，大致同前。右肾结石。肺癌化疗后复查，较2017-4-18日CT片对比：右肺上叶背段见一软组织团块，边界尚清，范围约50MM×35MM，呈分叶状，密度不均匀，内见钙化，增强扫描呈明显不均匀强化，累及邻近胸膜，较前稍增大；邻近右上肺背段、后基底段可见条状、斑片状影，边界不清。右肺下叶舌段见小片状灶，边界欠清，可见强化，范围较前缩小。两肺下叶、左肺中叶、左肺上叶外基底段可见多发结节状致密灶，边界尚清，周围见多发索条状影，部分与胸膜粘连。气管及其余支气管尚通畅。右肺门可见多发肿大淋巴结，边界欠清，部分相互融合，大者范围约33MM×23MM，部分内见钙化，增强呈不均匀强化，包绕挤压右上肺支气管，管腔变窄。左侧胸膜未见增厚、粘连。两侧胸腔未见积液。肝右外叶与腹壁间隙见一结节，大小约28MM×13MM，边界清，呈不均匀强化。肝脏形态正常，各叶比例尚可，其外形轮廓光整，肝S7边缘见一致密灶，边界清楚，直径约2MM，余肝实质密度均匀，未见异常强化表现。肝内胆管及胆总管未见扩张，其内未见结石影。胆囊不大，未见结石。肝门区结构未见异常。门静脉主干及分支未见充盈缺损。脾、胰腺大小、形态正常，密度均匀。右肾盂见致密灶。左肾及右肾下腺未见明确异常。左肾下腺见一结节，大小约16MM×13MM，边界尚清，强化不均匀。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。所见骨质结构未见破坏征象。</t>
+    <t>肺癌化疗前、全脑放疗后，与2017-05-08片对比：_x0004_两肺下叶、右肺上叶背段多发结节，考虑转移可能性大，右下肺较大病变较前缩小，其余较前未见明显变化。_x0004_两肺上叶少许纤维增殖钙化灶灶，大致同前。小叶中央型肺气肿。_x0004_右侧叶间胸膜小结节状增厚，较前变化不明显。_x0004_两肾下腺病变，较前缩小。_x0004_原大脑多个结节未见明确显示，左侧小脑半球病灶范围较前变化不大。肺癌化疗前、全脑放疗后，与2017-05-08片对比：_x0004_右肺下叶见金属致密影，其旁少许索条影，与邻近胸膜牵拉粘连。两肺下叶、右肺上叶背段多发类结节灶，最大者约为13MM×6MM，边界尚清，增强扫描见不均匀明显强化，邻近见少许条片及斑片影，右下肺较大病变较前缩小，其余较前变化不大。_x0004_两肺上叶见少许条索状高密度灶及小类结节状致密灶，边界清楚。_x0004_两肺见多个小类圆形无肺纹理区。_x0004_气管及支气管分支通畅。纵隔及两肺门未见明显肿大淋巴结。两侧胸腔未见积液。_x0004_右侧叶间胸膜见小结节状增厚，直径约为2MM。_x0004_肝脏形态未见异常，各叶比例正常，其外形轮廓光整，肝实质密度尚均匀，未见异常强化。肝内胆管、胆总管未见扩张，内未见结石影。胆囊大小未见异常，其内未见结石影。肝门区未见异常。门静脉未见异常。脾、胰腺、两肾大小、形态未见异常，密度均匀。右肾下腺见一结节，大小约为27MM×18MM，边界清楚，轻中度强化，较前缩小。左肾下腺见结节，大小约为26MM×20MM，边界清楚，增强扫描见轻度强化，较前稍缩小。_x0004_膀胱充盈良好，境界清楚。精囊大小、形态未见明显异常，密度均匀，膀胱精囊角存在。前列腺大小，形态未见异常，密度均匀。盆腔未见软组织肿块影。直肠境界清楚，壁不厚，未见明确异常密度灶。两侧髂血管旁、腹股沟未见肿大淋巴结。_x0004_原左侧顶叶、右侧额叶、两侧枕叶病变现未见明确显示，左侧小脑半球见稍低密度病灶，边界清，大小约19MM×12MM，可见轻度强化，与前片对比，病灶范围变化不大。余脑实质密度均匀。_x0004_各脑沟脑裂未见明显异常。_x0004_扫描范围内骨质未见明确破坏征象。</t>
+  </si>
+  <si>
+    <t>肺癌化疗前、全脑放疗后，与2017-03-20片对比：_x0004_两肺下叶、右肺上叶背段多发结节，考虑转移可能性大，部分较前稍增大，大部分较前未见明显变化。_x0004_两肺上叶少许纤维增殖钙化灶灶，大致同前。小叶中央型肺气肿。_x0004_右侧叶间胸膜小结节状增厚，较前变化不明显。_x0004_两肾下腺病变，较前增大。_x0004_大脑两侧及左侧小脑半球多发结节，病灶范围较前变化不大。肺癌化疗前、全脑放疗后，与2017-03-20片对比：_x0004_右肺下叶见金属致密影，其旁少许索条影，与邻近胸膜牵拉粘连。两肺下叶、右肺上叶背段多发类结节灶，最大者约为19MM×12MM，边界尚清，增强扫描见不均匀明显强化，邻近见少许条片及斑片影，部分较前稍增大，大部分较前变化不大。_x0004_两肺上叶见少许条索状高密度灶及小类结节状致密灶，边界清楚。_x0004_两肺见多个小类圆形无肺纹理区。_x0004_气管及支气管分支通畅。纵隔及两肺门未见明显肿大淋巴结。两侧胸腔未见积液。_x0004_右侧叶间胸膜见小结节状增厚，直径约为2MM。_x0004_肝脏形态未见异常，各叶比例正常，其外形轮廓光整，肝实质密度尚均匀，未见异常强化。肝内胆管、胆总管未见扩张，内未见结石影。胆囊大小未见异常，其内未见结石影。肝门区未见异常。门静脉未见异常。脾、胰腺、两肾大小、形态未见异常，密度均匀。右肾下腺见一结节，大小约为37MM×34MM，边界清楚，轻中度强化，较前增大。左肾下腺见结节，大小约为36MM×24MM，边界清楚，增强扫描见轻度强化，较前稍增大。_x0004_膀胱充盈良好，境界清楚。精囊大小、形态未见明显异常，密度均匀，膀胱精囊角存在。前列腺大小，形态未见异常，密度均匀。盆腔未见软组织肿块影。直肠境界清楚，壁不厚，未见明确异常密度灶。两侧髂血管旁、腹股沟未见肿大淋巴结。_x0004_左侧顶叶、右侧额叶、两侧枕叶及左侧小脑半球见多发结节，大者位于左侧小脑半球，大小约20MM×12MM，可见轻度强化，与前片对比，病灶范围变化不大，强化程度减低。余脑实质密度均匀。_x0004_各脑沟脑裂未见明显异常。_x0004_扫描范围内骨质未见明确破坏征象。</t>
+  </si>
+  <si>
+    <t>肺癌化疗后复查，较2017-4-18日CT片对比：_x0004_右肺上叶背段病灶，符合肺癌，较前稍增大。右肺上叶阻塞性肺炎。_x0004_右肺下叶舌段小片状灶，炎症可能，较前缩小，建议复查。_x0004_左肺、右肺下叶纤维增殖钙化灶。_x0004_右肺门多发淋巴结肿大，考虑转移，较前变化不大。_x0004_肝右外叶与腹壁间隙结节，考虑转移淋巴结可能性大，大致同前。_x0004_肝S7包膜上结节钙化灶。_x0004_左肾下腺病灶，考虑转移瘤，大致同前。右肾结石。肺癌化疗后复查，较2017-4-18日CT片对比：_x0004_右肺上叶背段见一软组织团块，边界尚清，范围约50MM×35MM，呈分叶状，密度不均匀，内见钙化，增强扫描呈明显不均匀强化，累及邻近胸膜，较前稍增大；邻近右上肺背段、后基底段可见条状、斑片状影，边界不清。右肺下叶舌段见小片状灶，边界欠清，可见强化，范围较前缩小。_x0004_两肺下叶、左肺中叶、左肺上叶外基底段可见多发结节状致密灶，边界尚清，周围见多发索条状影，部分与胸膜粘连。气管及其余支气管尚通畅。_x0004_右肺门可见多发肿大淋巴结，边界欠清，部分相互融合，大者范围约33MM×23MM，部分内见钙化，增强呈不均匀强化，包绕挤压右上肺支气管，管腔变窄。_x0004_左侧胸膜未见增厚、粘连。两侧胸腔未见积液。_x0004_肝右外叶与腹壁间隙见一结节，大小约28MM×13MM，边界清，呈不均匀强化。_x0004_肝脏形态正常，各叶比例尚可，其外形轮廓光整，肝S7边缘见一致密灶，边界清楚，直径约2MM，余肝实质密度均匀，未见异常强化表现。_x0004_肝内胆管及胆总管未见扩张，其内未见结石影。胆囊不大，未见结石。_x0004_肝门区结构未见异常。门静脉主干及分支未见充盈缺损。_x0004_脾、胰腺大小、形态正常，密度均匀。右肾盂见致密灶。左肾及右肾下腺未见明确异常。左肾下腺见一结节，大小约16MM×13MM，边界尚清，强化不均匀。_x0004_膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_所见骨质结构未见破坏征象。</t>
   </si>
   <si>
     <t>右肺上叶背段</t>
@@ -3875,16 +3875,16 @@
     <t>50MM×35MM</t>
   </si>
   <si>
-    <t>左上肺癌术后化疗后，对比2016-10-12片：左上肺术后改变，局部未见明确复发征象。左肺下叶少许纤维增殖灶。左肺下叶后段类结节，考虑增殖灶，大致同前。右下肺类结节，考虑增殖钙化灶，大致同前。左胸腔少量积液，较前减少。肝内数个小囊肿，大致同前。左上肺癌术后化疗后复查，与2016-10-12片对比：左侧胸廓稍塌陷，纵隔稍左移；左上肺术后缺如，支气管残端未见肿物。左下肺见少许条索状高密度影，内见条状致密影，相邻胸膜受牵拉。左肺下叶后段见一小类结节灶，边界尚清，大小约3MM×3MM，密度较高。右下肺尖后段见一类结节影，大小约7MM×3MM，内见点状钙化，以下较前无明显变化。气管、余支气管分支通畅。两肺门及纵隔未见肿大淋巴结影。左锁骨上动脉起自主动脉弓，经食管后方走行。考虑迷走型左锁骨上动脉。左胸腔见少量积液，较前减少，左侧胸膜稍增厚、粘连，右侧胸腔未见积液，右侧胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓欠光整，肝S2、S3、S7、S8可见多个低密度病灶，较大者约5MM×7MM，增强后未见强化。肝内胆管正常，未见结石，胆囊不大，未见结石，胆总管未见扩张，未见结石。肝门区未见异常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。所示两肾未见异常。两肾下腺未见明确异常。胃右血管旁可见小淋巴结，大小约为6MM×7MM，腹主动脉旁未见肿大淋巴结。扫描所见多个胸腰椎见骨质增生，未见明确破坏征象。</t>
+    <t>左上肺癌术后化疗后，对比2016-10-12片：_x0004_左上肺术后改变，局部未见明确复发征象。_x0004_左肺下叶少许纤维增殖灶。_x0004_左肺下叶后段类结节，考虑增殖灶，大致同前。_x0004_右下肺类结节，考虑增殖钙化灶，大致同前。_x0004_左胸腔少量积液，较前减少。_x0004_肝内数个小囊肿，大致同前。左上肺癌术后化疗后复查，与2016-10-12片对比：_x0004_左侧胸廓稍塌陷，纵隔稍左移；左上肺术后缺如，支气管残端未见肿物。左下肺见少许条索状高密度影，内见条状致密影，相邻胸膜受牵拉。左肺下叶后段见一小类结节灶，边界尚清，大小约3MM×3MM，密度较高。右下肺尖后段见一类结节影，大小约7MM×3MM，内见点状钙化，以下较前无明显变化。气管、余支气管分支通畅。_x0004_两肺门及纵隔未见肿大淋巴结影。左锁骨上动脉起自主动脉弓，经食管后方走行。考虑迷走型左锁骨上动脉。_x0004_左胸腔见少量积液，较前减少，左侧胸膜稍增厚、粘连，右侧胸腔未见积液，右侧胸膜未见增厚。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓欠光整，肝S2、S3、S7、S8可见多个低密度病灶，较大者约5MM×7MM，增强后未见强化。_x0004_肝内胆管正常，未见结石，胆囊不大，未见结石，胆总管未见扩张，未见结石。肝门区未见异常。门静脉未见异常。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。所示两肾未见异常。两肾下腺未见明确异常。_x0004_胃右血管旁可见小淋巴结，大小约为6MM×7MM，腹主动脉旁未见肿大淋巴结。_x0004_扫描所见多个胸腰椎见骨质增生，未见明确破坏征象。</t>
   </si>
   <si>
     <t>两肺多发转移。两侧锁骨下、纵隔、左侧膈下及扫及腹部多发肿大淋巴结，考虑转移。左侧胸腔积液，胸膜转移不除外。左乳术后、心脏术后改变。与2015-09-16胸部CT比较：两肺各叶见散在多发类圆形结节及肿块较前缩小变淡，原较大约26MM×23MM（Im25），现约17MM×14MM（IMA25）。两侧锁骨下区多发肿大淋巴结较前增大，现约29MM×20MM（IMA4）者，原约20MM×14MM（IMA3）；纵隔淋巴结大致同前，较大约1.3CM×1.2CM（Im13）。左侧胸膜增厚，可见少量胸腔积液同前；右侧未见胸水征象。心脏体积增大，右房室间见金属影。扫描所及诸骨未见骨质破坏征象。左乳术后，左乳腺体结构紊乱，局部见不规则片絮状高密度影同前（IM34）。肝脏弥漫转移，大量腹水，结合腹部检查。</t>
   </si>
   <si>
-    <t>None右肺癌综合治疗后，与2017-10-11片对比：右肺下叶术后缺失，未见明确复发征象。右肺上叶片状稍高密度影，考虑炎症，较前明显好转。右肺上叶少许纤维增殖灶，大致同前。左肺见数个类结节，较大者约3MM，边界清，考虑增殖灶可能，较前未见明显变化。左肺下叶、中叶、上叶可见散在斑片状稍高密度影，考虑炎症，较前变化不明显。右侧锁骨下、血管前、下上气管旁、主动脉旁见多个淋巴结，最大者短径约9MM，边界清，增强后较明显强化，较前未见明显变化。右侧胸腔见少量积液，较前减少；。上胸膜稍增厚，较前变化不明显。扫描所见甲状腺右叶见2个结节，较大者约14MM×12MM，边界清晰，增强时明显强化，考虑结节性甲状腺肿，大致同前。肝S2、S7小囊肿；胆囊结石；右肾囊肿，较前无明显改变。胸12椎体右侧见一稍高密度灶，直径约2MM，边界清，考虑骨岛，较前相仿。</t>
-  </si>
-  <si>
-    <t>心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号心功能正常心超声检测值：LA   27MM       AO     28MM        MV E 1.01MM/s     EF 69%LV   43MM       IVS    8MM            A 0.90MM/s     FS 38% RA   33MM       LVPW   7MMRV   16MM       PA     19MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图未见异常。</t>
+    <t>None右肺癌综合治疗后，与2017-10-11片对比：_x0004_右肺下叶术后缺失，未见明确复发征象。_x0004_右肺上叶片状稍高密度影，考虑炎症，较前明显好转。_x0004_右肺上叶少许纤维增殖灶，大致同前。_x0004_左肺见数个类结节，较大者约3MM，边界清，考虑增殖灶可能，较前未见明显变化。_x0004_左肺下叶、中叶、上叶可见散在斑片状稍高密度影，考虑炎症，较前变化不明显。_x0004_右侧锁骨下、血管前、下上气管旁、主动脉旁见多个淋巴结，最大者短径约9MM，边界清，增强后较明显强化，较前未见明显变化。_x0004_右侧胸腔见少量积液，较前减少；。上胸膜稍增厚，较前变化不明显。_x0004_扫描所见甲状腺右叶见2个结节，较大者约14MM×12MM，边界清晰，增强时明显强化，考虑结节性甲状腺肿，大致同前。_x0004_肝S2、S7小囊肿；胆囊结石；右肾囊肿，较前无明显改变。_x0004_胸12椎体右侧见一稍高密度灶，直径约2MM，边界清，考虑骨岛，较前相仿。_x0004_</t>
+  </si>
+  <si>
+    <t>心脏结构及运动未见异常_x0004__x0004_各房室腔及大血管未探及异常血流信号_x0004__x0004_心功能正常心超声检测值：_x0004__x0004_LA   27MMAO     28MMV E 1.01m/s     EF 69%_x0004__x0004_LV   43MMIVS    8MMA 0.90m/s     FS 38% _x0004__x0004_RA   33MMLVPW   7MM_x0004__x0004_RV   16MMPA     19MM_x0004__x0004__x0004__x0004_二维及Ｍ型超声心动图特征：_x0004__x0004_升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；_x0004__x0004_各房室腔径正常。_x0004__x0004_室壁厚度及运动正常。房、室间隔连续性完好。_x0004__x0004_各组瓣膜形态、结构及运动正常。_x0004__x0004_心包及心包腔未见异常。_x0004__x0004_彩色及频谱多普勒超声心动图未见异常。</t>
   </si>
   <si>
     <t>左肺上叶肺癌化疗后，与2014-11-11对比：左上肺叶病灶，较前稍有增大。纵隔、左肺门淋巴结，未见明显变化。肝囊肿。左肾囊肿。胸7、8、12、腰2、左侧第3后肋病变，较前变化不大。左肺上叶肺癌化疗后：左上肺叶背段见一不规则形软组织密度灶，大小约25MM×21MM，呈分叶状，见短毛刺，其内密度欠均匀，增强扫描不均匀强化，病灶远侧肺组织内见条片状密度增高影，边欠清，邻近斜裂受牵拉。余肺纹理清晰，未见明确病变；气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。左侧肺门见稍大淋巴结，大小约为8MM×7MM，增强扫描轻度强化，左侧上气管旁、隆突上见多个小淋巴结，大者约为6MM×5MM，轻度强化。两侧胸腔未见积液。右侧胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝S4、S5、S7见数个小囊性低密度灶，最大者约15MM×13MM，边界清楚，密度均匀，增强扫描未见明显强化；肝内胆管正常，胆囊大小正常，其内未见结石影，胆总管未见扩张；肝门区正常；门静脉所见正常。脾大小正常，密度均匀；胰腺大小、形态正常，密度均匀。左肾见2个囊性病灶，大的约57MM×48MM，边界清楚，增强扫描未见强化。右肾所见正常；两肾下腺所见正常。膈脚后、腹膜后未见肿大淋巴结。胸7、8、12、腰2椎体见骨质破坏区，周围见硬化边。左侧第3后肋骨松质见条片状高密度灶，边界模糊。</t>
@@ -3893,7 +3893,7 @@
     <t>25MM×21MM</t>
   </si>
   <si>
-    <t>右肺癌伴右侧肺不张、右侧胸腔积液，对比外院2017-9-19旧片，右肺肿块较前增大；右侧肺不张较前明显。纵隔、右肺门淋巴结，大致同前。左肺下叶前段片状影，大致同前。肝内多发囊肿。右肾下腺结节，转移待排。两肾囊肿；右肾结节，考虑错构瘤。右肾周围条索影，考虑炎症改变。盆腔未见明显异常。右侧肺癌治疗后复查：两侧胸廓不对称，右侧胸腔较左侧缩小，右肺不张，不张肺组织明显强化，其内见团块状肿物，密度不均匀，与节段性肺不张肺组织分界不清，范围约35MM×38MM，增强后不均匀强化；右肺支气管管腔狭窄，远端闭塞；右侧胸膜可见多发结节样增厚，增强扫描可见强化。两肺见多发无肺纹理区，周围可见斑片状、条索状毛玻璃样密度增高影，边缘模糊。左下肺前段见一片状高密度灶，边界尚清，增强扫描可见强化。两下气管旁、主肺动脉窗、主动脉旁、右肺门见多个淋巴结，较大者短径约15MM，较明显强化。右侧胸腔中量积液，较前增多，左侧胸腔未见积液。余胸膜无增厚、粘连。肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，肝内多发类圆形低密度灶，散在分布，较大者位于S2/3，大小约23MM×15MM，增强扫描未见强化。肝内胆管未见扩张，其内未见结石影，胆囊稍大，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾可见多个类圆形囊状灶，较大者直径约13MM，增强扫描未见强化；右肾可见一不规则密度结节，内部密度不均，内可见脂肪密度，大小约7MM×9MM×16MM；右肾周围脂肪间隙模糊，可见条索状、小片状密度增高影。右肾下腺可见一结节，直径约10MM，增强后不均匀强化；左肾下腺大小、形态未见异常，密度均匀。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。精囊大小、形态未见异常，密度均匀，膀胱精囊角存在。前列腺大小、形态未见异常，密度均匀。直肠未见明显异常。两侧髂血管旁、腹股沟未见肿大淋巴结扫描所见骨质未见破坏征象。</t>
+    <t>右肺癌伴右侧肺不张、右侧胸腔积液，对比外院2017-9-19旧片，右肺肿块较前增大；右侧肺不张较前明显。_x0004_纵隔、右肺门淋巴结，大致同前。_x0004_左肺下叶前段片状影，大致同前。_x0004_肝内多发囊肿。_x0004_右肾下腺结节，转移待排。_x0004_两肾囊肿；右肾结节，考虑错构瘤。右肾周围条索影，考虑炎症改变。_x0004_盆腔未见明显异常。右侧肺癌治疗后复查：_x0004_两侧胸廓不对称，右侧胸腔较左侧缩小，右肺不张，不张肺组织明显强化，其内见团块状肿物，密度不均匀，与节段性肺不张肺组织分界不清，范围约35MM×38MM，增强后不均匀强化；右肺支气管管腔狭窄，远端闭塞；右侧胸膜可见多发结节样增厚，增强扫描可见强化。两肺见多发无肺纹理区，周围可见斑片状、条索状毛玻璃样密度增高影，边缘模糊。左下肺前段见一片状高密度灶，边界尚清，增强扫描可见强化。两下气管旁、主肺动脉窗、主动脉旁、右肺门见多个淋巴结，较大者短径约15MM，较明显强化。右侧胸腔中量积液，较前增多，左侧胸腔未见积液。余胸膜无增厚、粘连。_x0004_肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，肝内多发类圆形低密度灶，散在分布，较大者位于S2/3，大小约23MM×15MM，增强扫描未见强化。肝内胆管未见扩张，其内未见结石影，胆囊稍大，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾可见多个类圆形囊状灶，较大者直径约13MM，增强扫描未见强化；右肾可见一不规则密度结节，内部密度不均，内可见脂肪密度，大小约7MM×9MM×16MM；右肾周围脂肪间隙模糊，可见条索状、小片状密度增高影。右肾下腺可见一结节，直径约10MM，增强后不均匀强化；左肾下腺大小、形态未见异常，密度均匀。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_膀胱充盈良好，境界清楚。精囊大小、形态未见异常，密度均匀，膀胱精囊角存在。前列腺大小、形态未见异常，密度均匀。直肠未见明显异常。两侧髂血管旁、腹股沟未见肿大淋巴结_x0004_扫描所见骨质未见破坏征象。</t>
   </si>
   <si>
     <t>35MM×38MM</t>
@@ -3902,7 +3902,7 @@
     <t>直肠癌肺转移化疗后复查，与2012-10-18片对比：左肺下叶尖段及上叶前基底段病灶，范围较前缩小。两下肺小结节灶、左肺上叶后基底段及左中肺斑片影，较前未见明显变化，建议随诊。两侧乳腺癌术后改变，未见明显复发。肝S7结节，考虑血管瘤。肝S7肝内胆管结石。直肠癌术后改变，局部未见明显复发。左附件区囊性灶，较前未见变化。宫颈增大，请结合临床。直肠癌肺转移化疗后复查：左肺下叶尖段及左肺上叶前基底段各见一不规则异常密度灶，大小分别约16MM×22MM、12MM×14MM，病灶边界欠清，下叶病灶周围见片状磨玻璃影，病灶密度不均匀，下叶病灶强化不明显，上叶病灶中等强化。左下肺病灶上方及右下肺各见一结节灶，直径约4MM，边界清晰，密度均匀。左肺上叶后基底段见斑片影，周围见条索影，邻近胸膜粘连。左中肺见双小斑片影，较大者直径约6MM，边界欠清，周围可见毛刺。气管及支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜未见明显增厚。两侧乳腺术后缺如，两侧胸壁未见明显肿物。两侧腋窝未见肿大淋巴结。肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝S7见一结节，直径约7MM，边界清楚，增强扫描动脉期见结节状强化，门脉期及延迟期强化范围增大。肝S7另见一颗粒状致密灶。肝内外胆管无扩张，胆囊不大，壁不厚，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾不大，密度均匀。胰腺形态、大小及密度未见异常。两肾及两侧肾下腺未见异常。肝门区及腹膜后未见肿大淋巴结。直肠癌术后，吻合口区肠壁未见明显增厚，肠周间隙清晰。膀胱充盈良好，壁不厚，内未见异常密度灶。子宫大小、形态及轮廓未见异常，宫颈增大。左侧附件区见一囊性灶，直径约25MM，边界清楚，未见强化。两侧腹股沟区及两侧髂血管旁未见肿大淋巴结。扫描范围内未见明确骨质破坏。</t>
   </si>
   <si>
-    <t>None左肺癌治疗后，与2017.07.24片对比：1、左肺下叶前段不规则形密度增高影，密度不均匀，边界欠清，范围约42MM×29MM(肺窗显示)，与左侧水平裂胸膜关系密切，增强扫描不均匀强化，较前范围增大；左肺门见片状软组织密度灶包绕，边界不清，部分与左肺下叶前段病变相连，范围较前增大，无法准确测量，增强扫描不均匀轻度强化，以下考虑左肺癌伴肺不张，范围较前增大。2、左肺多发散在片状、斑片状密度增高影，边界模糊，较前增多增大，考虑炎症；右上肺见少许斑片模糊影，较前缩小减少，考虑炎症。3、纵隔及左肺门多发淋巴结，大者短径约10MM，较前相仿。4、两肺多发肺大泡，两肺散在纤维增殖灶，较前相仿。5、肝内多个类圆形低密度灶，界清，大者约26MM×20MM，增强未见强化，较前相仿，考虑囊肿。两肾囊肿，大者约21MM×20MM，较前相仿。6、增强动脉期肝S6斑片状明显强化灶，考虑异常灌注可能性大，较前相仿，血管瘤待排。7、腹主动脉旁多发淋巴结，部分轻度肿大，较大者短径约17MM，较前增大，考虑转移。8、T10椎体右后缘稍致密，较前相仿。9、盆腔未见明显异常。</t>
+    <t>None左肺癌治疗后，与2017.07.24片对比：_x0004_1、左肺下叶前段不规则形密度增高影，密度不均匀，边界欠清，范围约42MM×29MM(肺窗显示)，与左侧水平裂胸膜关系密切，增强扫描不均匀强化，较前范围增大；左肺门见片状软组织密度灶包绕，边界不清，部分与左肺下叶前段病变相连，范围较前增大，无法准确测量，增强扫描不均匀轻度强化，以下考虑左肺癌伴肺不张，范围较前增大。_x0004_2、左肺多发散在片状、斑片状密度增高影，边界模糊，较前增多增大，考虑炎症；右上肺见少许斑片模糊影，较前缩小减少，考虑炎症。_x0004_3、纵隔及左肺门多发淋巴结，大者短径约10MM，较前相仿。_x0004_4、两肺多发肺大泡，两肺散在纤维增殖灶，较前相仿。_x0004_5、肝内多个类圆形低密度灶，界清，大者约26MM×20MM，增强未见强化，较前相仿，考虑囊肿。两肾囊肿，大者约21MM×20MM，较前相仿。_x0004_6、增强动脉期肝S6斑片状明显强化灶，考虑异常灌注可能性大，较前相仿，血管瘤待排。_x0004_7、腹主动脉旁多发淋巴结，部分轻度肿大，较大者短径约17MM，较前增大，考虑转移。_x0004_8、T10椎体右后缘稍致密，较前相仿。_x0004_9、盆腔未见明显异常。</t>
   </si>
   <si>
     <t>42MM×29MM</t>
@@ -3944,10 +3944,10 @@
     <t>左上肺癌术后化疗后：左肺中叶散在纤维灶，大致同前。左侧胸膜轻度增厚，左侧胸腔少许积液。肝内多发囊肿。右肾小囊肿。左上肺癌术后化疗后，与2014-04-08片对比：左肺上叶术后缺失，左肺上叶支气管残端见线样致密影，未见明确软组织肿块，左肺下、中叶充气良好。左肺中叶边缘见少许斑片灶、条索病灶，与胸膜粘连。余肺未见实质性病变。纵隔稍向左偏移，两肺门及纵隔未见明显肿大淋巴结。左侧胸腔少量积液，稍减少。左侧胸膜轻度增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝内见多发类圆形低密灶，边界清，最大者直径约13MM，边界清，增强扫描未见强化，较前未见明显变化。胆囊大小正常，其内未见结石，肝内胆管、胆总管未见扩张，其内未见结石。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见小低密灶，边界清，短径约3MM，边界清，增强扫描未见强化，左肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见明显肿大淋巴结。左侧第4、5前肋局部骨皮质稍扭曲，但连续性存在，大致同前。</t>
   </si>
   <si>
-    <t>C7-T4椎体转移瘤，T3，4椎管略受侵，T1椎体病理性骨折，请结合临床、对比原片。胸椎退变。T10-11水平黄韧带肥厚。胸椎生理曲度存在，部分椎体缘骨质增生变尖，扫描范围所见C7-T4椎体及附件内可见骨质破坏，信号呈混杂T1、混杂T2信号影，增强扫描可见明显不均匀强化。T1椎体变扁，C7-T2水平棘突周围软组织可见结节状、条片状长T2信号，局部蔓延至C7-T2水平椎管内硬膜外，增强扫描明显强化。部分椎体可见斑点状、小片状高信号影（考虑为脂肪沉积）。椎间盘未见突出及膨出信号影，T10-11水平黄韧带肥厚，相应硬膜囊后缘受压。增强扫描胸髓未见异常信号影，T9-11水平脊髓后缘可见迂曲强化血管影。</t>
-  </si>
-  <si>
-    <t>右肺癌化疗后，与2017-03-20片对比：右肺上叶背段肺门旁少许软组织灶，较前未见明显变化。右肺上叶背段胸膜上病变，较前增大；其周围类结节灶，考虑转移可能性大。纵隔、右肺门、胃右动脉旁淋巴结转移，侵犯食管，较前增大。两肺肺气肿，少许纤维增殖灶，较前未见明显变化。肝多发小囊肿。两肾小囊肿。右肺癌化疗后，与2017-03-20片对比：右肺上叶背段肺门旁见斑片状软组织灶，边界不清，形态不规则，与肿大淋巴结分界不清，大小难以准确测量，增强扫描较明显强化，较前未见明显变化。右肺上叶背段胸膜上见不规则片状高密度灶，范围约为33MM×45MM，边界不清，密度不均匀，内见不规则空洞形成，增强扫描轻中度不均匀强化。右肺上叶背段病灶周围见类结节状、片状高密度灶，边界清楚，增强扫描见强化。两肺下叶、左肺中叶、右肺上叶外基底段尚可见多发斑片状、条索状及类结节灶，边界欠清，较前未见明显变化。两肺纹理稀疏，见多发小类圆形无肺纹理区。右肺上叶背段支气管腔稍狭窄，气管及余支气管分支通畅。右上气管旁、主肺动脉窗、隆突上、右肺门、胃右动脉旁见多个淋巴结，较大者约为52MM×40MM，边界不清，增强扫描见不均匀明显强化，病灶侵犯食管并突入食管腔内，其下方食管轻度扩张、积液，病灶较前增大。血管前、左上气管旁见数个小淋巴结，较大者短径约6MM，较前未见明显变化。两侧胸腔未见积液。两侧胸膜粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝实质见数个小类圆形低密度病变，边界清晰，较大者长径约15MM，增强扫描未见强化，较前未见明显变化。肝内胆管正常，其内未见结石，胆囊大小正常，其内未见结石，胆总管未见扩张，其内未见结石影。肝门区结构未见异常。门静脉未见充盈缺损。脾及胰腺大小、形态正常，密度均匀。两肾实质见数个小类圆形低密度病灶，边界清晰，较大者直径约4MM，增强扫描未见强化。两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围内骨质未见明显破坏。</t>
+    <t>C7-T4椎体转移瘤，T3,4椎管略受侵，T1椎体病理性骨折，请结合临床、对比原片。胸椎退变。T10-11水平黄韧带肥厚。胸椎生理曲度存在，部分椎体缘骨质增生变尖，扫描范围所见C7-T4椎体及附件内可见骨质破坏，信号呈混杂T1、混杂T2信号影，增强扫描可见明显不均匀强化。T1椎体变扁，C7-T2水平棘突周围软组织可见结节状、条片状长T2信号，局部蔓延至C7-T2水平椎管内硬膜外，增强扫描明显强化。部分椎体可见斑点状、小片状高信号影（考虑为脂肪沉积）。椎间盘未见突出及膨出信号影，T10-11水平黄韧带肥厚，相应硬膜囊后缘受压。增强扫描胸髓未见异常信号影，T9-11水平脊髓后缘可见迂曲强化血管影。</t>
+  </si>
+  <si>
+    <t>右肺癌化疗后，与2017-03-20片对比：_x0004_右肺上叶背段肺门旁少许软组织灶，较前未见明显变化。_x0004_右肺上叶背段胸膜上病变，较前增大；其周围类结节灶，考虑转移可能性大。纵隔、右肺门、胃右动脉旁淋巴结转移，侵犯食管，较前增大。_x0004_两肺肺气肿，少许纤维增殖灶，较前未见明显变化。_x0004_肝多发小囊肿。_x0004_两肾小囊肿。右肺癌化疗后，与2017-03-20片对比：_x0004_右肺上叶背段肺门旁见斑片状软组织灶，边界不清，形态不规则，与肿大淋巴结分界不清，大小难以准确测量，增强扫描较明显强化，较前未见明显变化。右肺上叶背段胸膜上见不规则片状高密度灶，范围约为33MM×45MM，边界不清，密度不均匀，内见不规则空洞形成，增强扫描轻中度不均匀强化。右肺上叶背段病灶周围见类结节状、片状高密度灶，边界清楚，增强扫描见强化。_x0004_两肺下叶、左肺中叶、右肺上叶外基底段尚可见多发斑片状、条索状及类结节灶，边界欠清，较前未见明显变化。两肺纹理稀疏，见多发小类圆形无肺纹理区。右肺上叶背段支气管腔稍狭窄，气管及余支气管分支通畅。_x0004_右上气管旁、主肺动脉窗、隆突上、右肺门、胃右动脉旁见多个淋巴结，较大者约为52MM×40MM，边界不清，增强扫描见不均匀明显强化，病灶侵犯食管并突入食管腔内，其下方食管轻度扩张、积液，病灶较前增大。血管前、左上气管旁见数个小淋巴结，较大者短径约6MM，较前未见明显变化。_x0004_两侧胸腔未见积液。两侧胸膜粘连。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝实质见数个小类圆形低密度病变，边界清晰，较大者长径约15MM，增强扫描未见强化，较前未见明显变化。肝内胆管正常，其内未见结石，胆囊大小正常，其内未见结石，胆总管未见扩张，其内未见结石影。肝门区结构未见异常。门静脉未见充盈缺损。脾及胰腺大小、形态正常，密度均匀。两肾实质见数个小类圆形低密度病灶，边界清晰，较大者直径约4MM，增强扫描未见强化。两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_扫描范围内骨质未见明显破坏。</t>
   </si>
   <si>
     <t>左上肺叶肺癌化疗后，与2013-12-12对比：左上肺叶结节，较前稍缩小，周围肺不张较前复张。左肺门、左侧上气管旁、隆突上淋巴结，较前缩小。肝囊肿。左肾囊肿。第7、8胸椎体、第2腰椎转移瘤，范围较前未见明显变化。左上肺叶肺癌化疗后，与2013-12-12对比：左上肺叶背段见一不规则形团块灶，大小约18MM×16MM，呈分叶状，见短毛刺，其内密度欠均匀，增强后呈不均匀强化，病灶周围肺组织体积缩小，密度增高，邻近斜裂受牵拉，余肺纹理尚清晰，未见明确结节；气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。左侧肺门、左侧上气管旁、隆突上见多个淋巴结，大的短径约5MM，均较前缩小。两侧胸腔未见积液。右侧胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝S4、S5、S7见数个小囊性低密度灶，最大者约13MM×12MM，边界清楚，密度均匀，增强后未见强化；肝内胆管正常，胆囊大小正常，其内未见结石影，胆总管未见扩张；肝门区正常；门静脉所见正常。脾大小正常，密度均匀；胰腺大小、形态正常，密度均匀。左肾见2个囊性影，大的约53MM×46MM，边界清楚，增强后未见强化。右肾所见正常；两肾下腺所见正常。膈脚后、腹主动脉旁未见肿大淋巴结。腹腔未见积液。第7、8胸椎体、第2腰椎体可见骨质破坏区，周围见硬化边。</t>
@@ -3962,7 +3962,7 @@
     <t>19MM×15MM</t>
   </si>
   <si>
-    <t>1.考虑右肺下叶中央型MT，伴阻塞性肺不张、炎症，纵隔淋巴结转移；右侧大量胸腔积液；右肺上叶压迫性膨胀不全，伴少许慢性炎症；冠脉钙化。2.甲状腺左叶糖代谢轻度增高的低密度灶，良性病变可能，请结合临床。3.肝脏多发无糖代谢异常增高的低密度灶，考虑良性病变（囊肿）；前列腺钙化；腹腔少量积液。4.脊柱退变。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常。CT平扫示脑实质密度均匀；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧下颌窦少许粘膜增厚，考虑为慢性炎症；余副鼻窦无殊。颈部PET/CT图像示甲状腺左叶上极见一大小约10.4MM×7.3MM、糖代谢轻度增高的稍低密度灶，内部密度不均，边缘欠清，最大SUV值约2.11；甲状腺右叶无殊；两侧颈部、锁骨区无异常糖代谢增高的淋巴结；口咽、喉咽部无殊。胸部PET/CT图像示右肺下叶支气管鼠尾状狭窄闭塞，局部见一最大截面约61.6MM×51.0MM、糖代谢异常增高的分叶状软组织团块影，最大SUV值约10.60，内部欠均；远端肺野实变，伴不均匀糖代谢轻度增高，最大SUV值约2.67；右侧胸腔大量积液，右肺上叶压迫性膨胀不全，内见无异常糖代谢增高的条片影；左肺野无殊；纵隔稍左移；主动脉弓右、右肺动脉右见数枚糖代谢异常增高的肿大淋巴结，最大者约24.4MM×18.7MM，最大SUV值约4.74；左肺门、两腋窝无异常糖代谢增高的淋巴结；心脏不大；冠脉右主干、右前降支部分管壁钙化。腹部PET图像见胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，肝右左叶见大小不等、多枚囊性低密度灶，最大者约15.8MM×13.4MM，密度均，界清；肝内外胆管无扩张；胆囊、胰、脾、两肾、肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔少量积液。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱壁光滑无增厚；两侧精囊腺形态可；两侧膀胱精囊三角对称；前列腺饱满，内见斑块状致密影；盆腔内未见占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，颈椎生理曲度变平，胸椎略右弯；腰5/骶1椎间隙狭窄，椎间盘真空征；平扫骨窗示诸骨无骨质破坏吸收征象；部分颈、胸、腰、骶椎体及椎小关节骨质增生。</t>
+    <t>1.考虑右肺下叶中央型MT，伴阻塞性肺不张、炎症，纵隔淋巴结转移；右侧大量胸腔积液；右肺上叶压迫性膨胀不全，伴少许慢性炎症；冠脉钙化。_x0004_2.甲状腺左叶糖代谢轻度增高的低密度灶，良性病变可能，请结合临床。_x0004_3.肝脏多发无糖代谢异常增高的低密度灶，考虑良性病变（囊肿）；前列腺钙化；腹腔少量积液。_x0004_4.脊柱退变。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常。CT平扫示脑实质密度均匀；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧下颌窦少许粘膜增厚，考虑为慢性炎症；余副鼻窦无殊。颈部PET/CT图像示甲状腺左叶上极见一大小约10.4MM×7.3MM、糖代谢轻度增高的稍低密度灶，内部密度不均，边缘欠清，最大SUV值约2.11；甲状腺右叶无殊；两侧颈部、锁骨区无异常糖代谢增高的淋巴结；口咽、喉咽部无殊。胸部PET/CT图像示右肺下叶支气管鼠尾状狭窄闭塞，局部见一最大截面约61.6MM×51.0MM、糖代谢异常增高的分叶状软组织团块影，最大SUV值约10.60，内部欠均；远端肺野实变，伴不均匀糖代谢轻度增高，最大SUV值约2.67；右侧胸腔大量积液，右肺上叶压迫性膨胀不全，内见无异常糖代谢增高的条片影；左肺野无殊；纵隔稍左移；主动脉弓右、右肺动脉右见数枚糖代谢异常增高的肿大淋巴结，最大者约24.4MM×18.7MM，最大SUV值约4.74；左肺门、两腋窝无异常糖代谢增高的淋巴结；心脏不大；冠脉右主干、右前降支部分管壁钙化。腹部PET图像见胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，肝右左叶见大小不等、多枚囊性低密度灶，最大者约15.8MM×13.4MM，密度均，界清；肝内外胆管无扩张；胆囊、胰、脾、两肾、肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔少量积液。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱壁光滑无增厚；两侧精囊腺形态可；两侧膀胱精囊三角对称；前列腺饱满，内见斑块状致密影；盆腔内未见占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，颈椎生理曲度变平，胸椎略右弯；腰5/骶1椎间隙狭窄，椎间盘真空征；平扫骨窗示诸骨无骨质破坏吸收征象；部分颈、胸、腰、骶椎体及椎小关节骨质增生。</t>
   </si>
   <si>
     <t>61.6MM×51.0MM</t>
@@ -3974,16 +3974,16 @@
     <t>两肺多发转移。两侧锁骨下、纵隔、左侧膈下及扫及腹部多发肿大淋巴结，考虑转移。左侧胸腔积液，胸膜转移不除外。左乳术后、心脏术后改变。与2011-02-22胸部CT比较：两肺各叶见散在多发类圆形结节及肿块，边缘较清晰，较大约3.3CM×2.0CM（Im29）。两侧锁骨下区、纵隔、左侧膈下及扫及腹腔内见多发肿大淋巴结，如右侧锁骨下较大约3.0CM×1.6CM（Im5）；纵隔内较大约1.4CM×1.4CM（Im12）。两侧肺门饱满，平扫与血管结构无法分辨。左侧胸膜增厚，可见少量胸腔积液；右侧未见胸水征象。心脏体积增大，右房室间见金属影。扫描所及诸骨未见骨质破坏征象。左乳术后，左乳腺体结构紊乱，原腺体后方类圆形结节现未见显示，局部见不规则片絮状高密度影（IM30），边缘模糊，结合乳腺相关检查。</t>
   </si>
   <si>
-    <t>右乳MT术后：1.左肺上叶转移性MT可能；右肺下叶炎症；其余双肺慢性炎症及陈旧灶；右侧胸膜增厚钙化；2.甲状腺两侧叶密度不均伴右叶稍高密度结节，良性病变可能，请结合超声检查；3.肝脏囊肿；左肾小结石。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部及锁骨区无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺两侧密度不均，右叶上极见稍高密度结节影，直径约为5.1MM。胸部PET/CT图像示右乳MT术后改变；双肺纹理增粗，紊乱，左肺上叶内侧基底段见糖代谢异常增高的结节，大小约为18.0MM×13.8MM，最大SUV值约为7.2；右肺下叶舌段见糖代谢异常增高的斑片影，大小约为26.8MM×10.3MM，最大SUV值约为7.0；右肺野内另见散在斑片、条絮影，部分伴糖代谢增高，糖代谢最高者位于右肺下叶尖后段，最大SUV值约为1.8；左肺下叶见少许无糖代谢增高的条片影；双肺门及纵隔内未见明显糖代谢异常增高的肿大淋巴结；右侧胸膜增厚伴钙化；两侧胸腔无积液；心脏无明显增大；左侧腋窝见少许无明显糖代谢异常增高的小淋巴结，较大者大小约为8.1MM×5.5MM，考虑为慢性炎性淋巴结；左侧乳腺无殊。腹部PET图像示胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，肝内见数枚囊性低密度灶，较大者大小约为7.4MM×6.7MM；肝内外胆管无扩张；脾脏不大，密度均，脾门上方见类圆形结节影，密度同脾脏类似，考虑为副脾；左肾盂见少许致密影；胆囊、胰、右肾及两肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET/CT图像示两侧腹股沟见糖代谢略增高的淋巴结，较大者位于右侧，大小约为15.6MM×11.0MM，最大SUV值约为2.8，考虑为慢性炎性淋巴结；膀胱内大量显像剂生理性积聚，壁光滑无增厚；子宫内见节育器影；两附件区未见明显占位；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节部分骨质增生，考虑为退行性变。</t>
-  </si>
-  <si>
-    <t>右房增大伴右室舒张功能减退常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，34，20-37，右房内径，42，19-40，右室舒张末内径，46，35-56，右室收缩末内径，28，23-35，室间隔厚度，11，6-11，右室后壁厚度，10，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房增大，右室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻度三尖瓣反流估测肺动脉收缩压约38MMHg，。，三、，右心功能测定：，FS：40%；LVEF：70%；二尖瓣血流图示E/A，&amp;lt；，1；DT：170MMs，四、组织多普勒测定：，DTI示S波峰值：8.7CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
-  </si>
-  <si>
-    <t>肺癌放化疗后：左肺门旁病灶，较前稍增大。左下肺、左上肺斑片影，较前未见明显变化。右肺下叶少量纤维增殖灶，大致同前。两侧锁骨下窝、纵隔及左肺门淋巴结，较前变化不明显。左侧胸腔少量积液。肺癌放化疗后复查，对比2017-02-20片：左肺门旁见少量软组织信号灶，边界欠清，病灶包绕左肺下叶支气管，范围难以准确测量，较前增大，增强扫描可见不均质强化；左肺下叶及左肺上叶见多发斑片灶，边界不清，部分病灶见空气支气管征，与前片对比，病灶未见明显变化。右肺下叶见少许条索影及类结节灶，大致同前。两侧锁骨下窝、左下气管旁、左上气管旁及左肺门见多发淋巴结，部分相互融合，最大约18MM×16MM，较前变化不明显。左侧胸腔可见少量积液，T1WI呈等信号，T2WI呈高信号。右侧胸腔未见积液，两侧胸膜未见增厚。扫描范围未见明显骨质破坏征象。</t>
-  </si>
-  <si>
-    <t>左上肺癌综合治疗后，对比2016-07-08片：左枕叶、左颞叶及第3脑室周围白质区病灶，考虑转移瘤，大致同前。两侧额顶叶小缺血灶同前。空蝶鞍。左上肺癌脑转移综合治疗后，对比2016-07-08片：左枕叶、左颞叶及第3脑室周围白质区见数个异常信号灶，较大者约24MM×16MM（左侧枕叶），边界欠清，T1WI呈稍等信号，T2WI及Flair呈稍高信号，DWI呈稍高信号，增强后呈明显强化，较前未见明显变化；左侧枕叶及颞叶病灶旁软脑膜不均匀增厚，明显强化，较前未见明显变化。两侧额顶叶白质内见几个斑点状、小斑片状异常信号影，T1WI呈等或稍低信号，T2WI及FLAIR下呈高信号，增强后未见强化，较前未见明显变化。小脑及脑干形态正常，信号均匀，增强后未见异常信号区。各脑室及脑池大小、形态未见异常。大脑中线结构未见移位，未见占位性病变。颅骨骨质未见破坏。蝶鞍内见脑脊液充填，垂体变薄，较前未见明显变化。扫描范围内所见两侧下颌窦、筛窦、蝶窦充气良好，骨壁完整。两眼球后未见异常信号。</t>
+    <t>右乳MT术后：1.左肺上叶转移性MT可能；右肺下叶炎症；其余双肺慢性炎症及陈旧灶；右侧胸膜增厚钙化；_x0004_2.甲状腺两侧叶密度不均伴右叶稍高密度结节，良性病变可能，请结合超声检查；_x0004_3.肝脏囊肿；左肾小结石。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部及锁骨区无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺两侧密度不均，右叶上极见稍高密度结节影，直径约为5.1MM。胸部PET/CT图像示右乳MT术后改变；双肺纹理增粗，紊乱，左肺上叶内侧基底段见糖代谢异常增高的结节，大小约为18.0MM×13.8MM，最大SUV值约为7.2；右肺下叶舌段见糖代谢异常增高的斑片影，大小约为26.8MM×10.3MM，最大SUV值约为7.0；右肺野内另见散在斑片、条絮影，部分伴糖代谢增高，糖代谢最高者位于右肺下叶尖后段，最大SUV值约为1.8；左肺下叶见少许无糖代谢增高的条片影；双肺门及纵隔内未见明显糖代谢异常增高的肿大淋巴结；右侧胸膜增厚伴钙化；两侧胸腔无积液；心脏无明显增大；左侧腋窝见少许无明显糖代谢异常增高的小淋巴结，较大者大小约为8.1MM×5.5MM，考虑为慢性炎性淋巴结；左侧乳腺无殊。腹部PET图像示胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，肝内见数枚囊性低密度灶，较大者大小约为7.4MM×6.7MM；肝内外胆管无扩张；脾脏不大，密度均，脾门上方见类圆形结节影，密度同脾脏类似，考虑为副脾；左肾盂见少许致密影；胆囊、胰、右肾及两肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET/CT图像示两侧腹股沟见糖代谢略增高的淋巴结，较大者位于右侧，大小约为15.6MM×11.0MM，最大SUV值约为2.8，考虑为慢性炎性淋巴结；膀胱内大量显像剂生理性积聚，壁光滑无增厚；子宫内见节育器影；两附件区未见明显占位；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节部分骨质增生，考虑为退行性变。</t>
+  </si>
+  <si>
+    <t>右房增大伴右室舒张功能减退常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,34,20-37,右房内径,42,19-40,右室舒张末内径,46,35-56,右室收缩末内径,28,23-35,室间隔厚度,11,6-11,右室后壁厚度,10,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房增大，右室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。,3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。,4、左房室不大，肺动脉不增宽，,连续多普勒据轻度三尖瓣反流估测肺动脉收缩压约38MMHg,。,三、,右心功能测定：,FS:40%;LVEF:70%；二尖瓣血流图示E/A,&amp;lt;,1;DT:170MMs,四、组织多普勒测定：,DTI示S波峰值:8.7CM/s;E'/A',&amp;lt;,1,五、结论：,</t>
+  </si>
+  <si>
+    <t>肺癌放化疗后：_x0004_左肺门旁病灶，较前稍增大。_x0004_左下肺、左上肺斑片影，较前未见明显变化。_x0004_右肺下叶少量纤维增殖灶，大致同前。_x0004_两侧锁骨下窝、纵隔及左肺门淋巴结，较前变化不明显。_x0004_左侧胸腔少量积液。_x0004_肺癌放化疗后复查，对比2017-02-20片：_x0004_左肺门旁见少量软组织信号灶，边界欠清，病灶包绕左肺下叶支气管，范围难以准确测量，较前增大，增强扫描可见不均质强化；左肺下叶及左肺上叶见多发斑片灶，边界不清，部分病灶见空气支气管征，与前片对比，病灶未见明显变化。_x0004_右肺下叶见少许条索影及类结节灶，大致同前。_x0004_两侧锁骨下窝、左下气管旁、左上气管旁及左肺门见多发淋巴结，部分相互融合，最大约18MM×16MM，较前变化不明显。_x0004_左侧胸腔可见少量积液，T1WI呈等信号，T2WI呈高信号。右侧胸腔未见积液，两侧胸膜未见增厚。_x0004_扫描范围未见明显骨质破坏征象。_x0004_</t>
+  </si>
+  <si>
+    <t>左上肺癌综合治疗后，对比2016-07-08片：_x0004_左枕叶、左颞叶及第3脑室周围白质区病灶，考虑转移瘤，大致同前。_x0004_两侧额顶叶小缺血灶同前。_x0004_空蝶鞍。左上肺癌脑转移综合治疗后，对比2016-07-08片：_x0004_左枕叶、左颞叶及第3脑室周围白质区见数个异常信号灶，较大者约24MM×16MM（左侧枕叶），边界欠清，T1WI呈稍等信号，T2WI及Flair呈稍高信号，DWI呈稍高信号，增强后呈明显强化，较前未见明显变化；左侧枕叶及颞叶病灶旁软脑膜不均匀增厚，明显强化，较前未见明显变化。_x0004_两侧额顶叶白质内见几个斑点状、小斑片状异常信号影，T1WI呈等或稍低信号，T2WI及FLAIR下呈高信号，增强后未见强化，较前未见明显变化。_x0004_小脑及脑干形态正常，信号均匀，增强后未见异常信号区。_x0004_各脑室及脑池大小、形态未见异常。_x0004_大脑中线结构未见移位，未见占位性病变。_x0004_颅骨骨质未见破坏。_x0004_蝶鞍内见脑脊液充填，垂体变薄，较前未见明显变化。_x0004_扫描范围内所见两侧下颌窦、筛窦、蝶窦充气良好，骨壁完整。_x0004_两眼球后未见异常信号。</t>
   </si>
   <si>
     <t>左上肺,左上肺</t>
@@ -4001,7 +4001,7 @@
     <t>肝,肝S4,肝</t>
   </si>
   <si>
-    <t>1.胸部PET/CT显像示：与2012-5-4本院PET/CT图像相比，右肺多发结节较前明显缩小、减少，糖代谢异常增高灶消失；2.右肺下叶舌段新增糖代谢轻度增高的斑片影，考虑为放疗后改变；3.右上胸膜新增无明显糖代谢的结节，请结合临床。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行胸部PET/CT断层显像。胸部PET/CT图像示：与2012.5.4本院PET/CT图像比较，右肺下叶舌段新增糖代谢轻度增高的斑片影，最大SUV值为2.68，相邻肺组织收缩，原右肺多发结节较前均明显减少、缩小，糖代谢异常增高灶消失，最大者大小为4.4MM×2.1MM。右上胸膜见新增无明显糖代谢的小结节，大小为4.3MM×3.2MM，右上肺后基底段部分膨胀不全的斑片模糊影，最大SUV值约1.2，与前基本相似。余未见明确糖代谢增高灶及占位性病变；两侧胸腔无积液；心脏不大。胸部骨骼PET/CT图像时第1-10胸椎糖代谢程度明显减低，与2012-5-4本院PET/CT图像相似，考虑与放疗有关。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见明显骨质破坏吸收征象。</t>
+    <t>1.胸部PET/CT显像示：与2012-5-4本院PET/CT图像相比，右肺多发结节较前明显缩小、减少，糖代谢异常增高灶消失；_x0004_2.右肺下叶舌段新增糖代谢轻度增高的斑片影，考虑为放疗后改变；_x0004_3.右上胸膜新增无明显糖代谢的结节，请结合临床。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行胸部PET/CT断层显像。胸部PET/CT图像示：与2012.5.4本院PET/CT图像比较，右肺下叶舌段新增糖代谢轻度增高的斑片影，最大SUV值为2.68，相邻肺组织收缩，原右肺多发结节较前均明显减少、缩小，糖代谢异常增高灶消失，最大者大小为4.4MM×2.1MM。右上胸膜见新增无明显糖代谢的小结节，大小为4.3MM×3.2MM，右上肺后基底段部分膨胀不全的斑片模糊影，最大SUV值约1.2，与前基本相似。余未见明确糖代谢增高灶及占位性病变；两侧胸腔无积液；心脏不大。胸部骨骼PET/CT图像时第1-10胸椎糖代谢程度明显减低，与2012-5-4本院PET/CT图像相似，考虑与放疗有关。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见明显骨质破坏吸收征象。</t>
   </si>
   <si>
     <t>肝内多发复发存活灶，与2016-10-11片比较，病灶有所增多、部分增大，部分病灶出血、坏死较前明显；前胸壁和右侧膈肌转移，双肺多发转移，右侧少量胸水，较前进展。肝MT术后，肝右叶部分缺如，肝左叶见数处结节、团块状不规则异常信号影，T1WI呈不均匀高信号、T2WI呈高低混杂信号、DWI呈高信号，增强后强化不明显；肝内另见多发大小不等的条片、类圆形异常信号，T1WI呈低信号、T2WI呈稍高信号、DWI呈高信号，大部分病灶增强后动脉期见轻中度强化、部分环形强化，门脉及延迟期强化减退呈相对低信号，左后叶一团片影无明显强化；肝中及肝左静脉局部受累；前胸壁见大小约2.7CM×3.4CM的团块状异常信号，T1WI低、T2WI高信号，增强后可见不均匀强化，右侧膈肌增厚；脾稍大，未见明显异常信号影；胰腺及两肾无殊。所见双肺野及肺门见多发强化结节影。右侧胸腔少许积液。</t>
@@ -4010,25 +4010,25 @@
     <t>前胸壁,右侧膈肌,双肺</t>
   </si>
   <si>
-    <t>右肺癌化疗后复查：1、右肺门区不规则高代谢肿块，且侵及肺门、胸膜及纵隔，并与胸主动脉管壁分界不清。右肺不张。2、右胸膜转移；右侧胸腔积液。3、多发骨转移。4、左肺多发小结节，未见明显高代谢，首先考虑为转移。空腹6小时以下，静脉注射显像剂，平静休息60MMin后行胸部PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：扫及两锁骨下区未见肿大淋巴结或淋巴结浓聚。右肺癌化疗后，纵隔右移，右肺气体密度影消失，右侧胸腔代之以软组织及液性密度影，右肺支气管周围见不规则软组织密度影，侵及肺门、胸膜及纵隔，且与胸主动脉分界不清，PET示病变区域呈显著浓聚，最大SUV：22.0，较大浓聚截面约7.0CM×4.1CM大小。右胸膜多发不规则异常增厚伴放射性分布异常浓聚，最大SUV：13.0，较厚处约3.5CM。右侧胸腔积液。左肺多发小结节，较大者直径约0.4CM，未见明显高摄取。左肺门未见异常淋巴结浓聚。左胸膜光，未见胸腔积液。多个胸椎、右侧多发后肋、左4侧肋、右肩胛骨骨质破坏并放射性分布异常浓聚。扫及肝脾未见放射性分布异常浓聚灶。两肾下腺未见异常结节及放射性分布浓聚灶。</t>
+    <t>右肺癌化疗后复查：1、右肺门区不规则高代谢肿块，且侵及肺门、胸膜及纵隔，并与胸主动脉管壁分界不清。右肺不张。2、右胸膜转移；右侧胸腔积液。3、多发骨转移。4、左肺多发小结节，未见明显高代谢，首先考虑为转移。空腹6小时以下，静脉注射显像剂，平静休息60MMin后行胸部PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：扫及两锁骨下区未见肿大淋巴结或淋巴结浓聚。右肺癌化疗后，纵隔右移，右肺气体密度影消失，右侧胸腔代之以软组织及液性密度影，右肺支气管周围见不规则软组织密度影，侵及肺门、胸膜及纵隔，且与胸主动脉分界不清，PET示病变区域呈显著浓聚，最大SUV:22.0，较大浓聚截面约7.0CM×4.1CM大小。右胸膜多发不规则异常增厚伴放射性分布异常浓聚，最大SUV：13.0，较厚处约3.5CM。右侧胸腔积液。左肺多发小结节，较大者直径约0.4CM，未见明显高摄取。左肺门未见异常淋巴结浓聚。左胸膜光，未见胸腔积液。多个胸椎、右侧多发后肋、左4侧肋、右肩胛骨骨质破坏并放射性分布异常浓聚。扫及肝脾未见放射性分布异常浓聚灶。两肾下腺未见异常结节及放射性分布浓聚灶。</t>
   </si>
   <si>
     <t>右胸膜,骨,左肺</t>
   </si>
   <si>
-    <t>左上肺癌综合治疗后，对比2016-05-16片：左枕叶、左颞叶及第3脑室周围白质区病灶，考虑转移瘤，范围较前稍增大。两侧额顶叶小缺血灶同前。空蝶鞍。左上肺癌综合治疗后，对比2016-05-16片：左枕叶、左颞叶及第3脑室周围白质区可见数个异常信号灶，较大者约24MM×17MM（左侧枕叶），边界欠清，T1WI呈稍等信号，T2WI及Flair呈稍高信号，DWI呈稍高信号，增强后呈明显强化，病灶范围较前稍增大；左侧枕叶及颞叶病灶旁软脑膜不均匀增厚，明显强化，较前明显。两侧额顶叶白质内见几个斑点状、小斑片状异常信号影，T1WI呈等或稍低信号，T2WI及FLAIR下呈高信号，增强后未见强化，较前未见明显变化。小脑及脑干形态正常，信号均匀，增强后未见异常信号区。各脑室及脑池大小、形态未见异常。大脑中线结构未见移位，未见占位性病变。颅骨骨质未见破坏。蝶鞍内见脑脊液充填，垂体变薄，较前未见明显变化。扫描范围内所见两侧下颌窦、筛窦、蝶窦充气良好，骨壁完整。两眼球后未见异常信号。</t>
+    <t>左上肺癌综合治疗后，对比2016-05-16片：_x0004_左枕叶、左颞叶及第3脑室周围白质区病灶，考虑转移瘤，范围较前稍增大。_x0004_两侧额顶叶小缺血灶同前。_x0004_空蝶鞍。左上肺癌综合治疗后，对比2016-05-16片：_x0004_左枕叶、左颞叶及第3脑室周围白质区可见数个异常信号灶，较大者约24MM×17MM（左侧枕叶），边界欠清，T1WI呈稍等信号，T2WI及Flair呈稍高信号，DWI呈稍高信号，增强后呈明显强化，病灶范围较前稍增大；左侧枕叶及颞叶病灶旁软脑膜不均匀增厚，明显强化，较前明显。_x0004_两侧额顶叶白质内见几个斑点状、小斑片状异常信号影，T1WI呈等或稍低信号，T2WI及FLAIR下呈高信号，增强后未见强化，较前未见明显变化。_x0004_小脑及脑干形态正常，信号均匀，增强后未见异常信号区。_x0004_各脑室及脑池大小、形态未见异常。_x0004_大脑中线结构未见移位，未见占位性病变。_x0004_颅骨骨质未见破坏。_x0004_蝶鞍内见脑脊液充填，垂体变薄，较前未见明显变化。_x0004_扫描范围内所见两侧下颌窦、筛窦、蝶窦充气良好，骨壁完整。_x0004_两眼球后未见异常信号。</t>
   </si>
   <si>
     <t>None与2016-08-30胸部CT对比：左肺上叶后基底段肿物、多发结节与相邻不张肺组织与肿块融合分界不清，整体范围较前稍缩小，原约85MM×78MM，现约81MM×68MM（IMA59）。邻近肺膨胀不全稍减轻。左肺中叶结节较前稍缩小，原约10MM，现约9MM（IM39）。两肺陈旧灶，两肺气肿、肺大泡同前相仿。左肺门、隆突上、纵隔4、5组、右肺韧带肿大淋巴结稍缩小，如原22MM×18MM者现约22MM×14MM（IM36）；两锁骨下区及两腋上未见肿大淋巴结。左侧胸腔积液减少，左侧胸膜轻度增厚，右侧未见胸水征象。胸廓诸骨未见明确破坏征象。</t>
   </si>
   <si>
-    <t>左下中肺癌术后化疗后：左肺癌术后改变，未见明确复发征象。右下肺及左上肺多发肺大泡，较前相仿。右下肺及左上肺少许纤维增殖灶，较前相仿。纵隔小淋巴结，较前相仿。左侧胸膜增厚，较前相仿。肝多发囊肿，较前未见明显变化。左下中肺癌术后化疗后，与2016-04-21片对比：左侧胸廓稍塌陷，纵隔结构轻度向左侧移位。左中下肺术后缺失，支气管残端未见明确软组织肿块形成。左上肺膨胀良好，右下肺及左上肺见多个散在分布的大小不等透亮影，边界清楚，壁薄，较前相仿；右肺下叶、左上肺见少许斑片状影、条索状影及类结节灶，边界清，较前相仿；余肺野未见明显实质性病变。气管和支气管分支通畅。左侧气管食管沟、两上气管旁、主肺动脉窗及隆突上内见数个小淋巴结，边界尚清，较大者短径约8MM，增强扫描中度强化，较前相仿；两侧肺门未见明显肿大淋巴结。两侧胸腔未见积液。左侧胸膜增厚、粘连；右侧胸膜未见增厚。肝脏大小形态正常，各叶比例在正常范围内，轮廓光整，密度不均匀，肝S2~8见多个类圆形低密度灶，边界清楚，较大者约27MM×22MM，增强扫描未见强化。肝内外胆管、胆总管及胆囊未见异常。肝门区、门静脉未见异常。脾脏不大密度均匀；胰腺大小形态及密度未见异常。两肾及肾下腺区未见异常。膈脚后、腹腔干周围、腹主动脉旁未见肿大淋巴结。左侧第6后肋呈术后改变；余所见骨质未见破坏征象。</t>
+    <t>左下中肺癌术后化疗后：_x0004_左肺癌术后改变，未见明确复发征象。_x0004_右下肺及左上肺多发肺大泡，较前相仿。_x0004_右下肺及左上肺少许纤维增殖灶，较前相仿。_x0004_纵隔小淋巴结，较前相仿。_x0004_左侧胸膜增厚，较前相仿。_x0004_肝多发囊肿，较前未见明显变化。左下中肺癌术后化疗后，与2016-04-21片对比：_x0004_左侧胸廓稍塌陷，纵隔结构轻度向左侧移位。_x0004_左中下肺术后缺失，支气管残端未见明确软组织肿块形成。_x0004_左上肺膨胀良好，右下肺及左上肺见多个散在分布的大小不等透亮影，边界清楚，壁薄，较前相仿；右肺下叶、左上肺见少许斑片状影、条索状影及类结节灶，边界清，较前相仿；余肺野未见明显实质性病变。气管和支气管分支通畅。_x0004_左侧气管食管沟、两上气管旁、主肺动脉窗及隆突上内见数个小淋巴结，边界尚清，较大者短径约8MM，增强扫描中度强化，较前相仿；两侧肺门未见明显肿大淋巴结。_x0004_两侧胸腔未见积液。左侧胸膜增厚、粘连；右侧胸膜未见增厚。_x0004_肝脏大小形态正常，各叶比例在正常范围内，轮廓光整，密度不均匀，肝S2~8见多个类圆形低密度灶，边界清楚，较大者约27MM×22MM，增强扫描未见强化。_x0004_肝内外胆管、胆总管及胆囊未见异常。肝门区、门静脉未见异常。_x0004_脾脏不大密度均匀；胰腺大小形态及密度未见异常。_x0004_两肾及肾下腺区未见异常。_x0004_膈脚后、腹腔干周围、腹主动脉旁未见肿大淋巴结。_x0004_左侧第6后肋呈术后改变；余所见骨质未见破坏征象。</t>
   </si>
   <si>
     <t>左肺MT伴阻塞性肺炎及肺不张，左上肺多发转移可能，多发淋巴结肿大，较2014-7-22片进展；右下肺微小结节，较前相仿；双肺气肿；心包少量积液；甲状腺右叶结节，建议超声；肝左后叶低密度灶，建议腹部CT。左中下肺可见不规则团块状软组织影，增强后呈不均匀强化，周围伴实变，左肺下叶支气管截断，左肺中叶支气管狭窄闭塞，左肺上叶见多发结节影及条片影，右肺下叶斜裂处（im38）见一微小结节影，约3.5MM，余双肺野内见多发小囊状透亮影，左侧锁骨下、腋窝、左肺门及纵隔内见肿大淋巴结，胸腔内无积液。心包见少量积液。甲状腺右叶见低密度结节，直径约6MM。所见肝内见多发囊性低密度灶，肝左后叶另见一枚稍低密度灶，大小约1.3CM×1.4CM。</t>
   </si>
   <si>
-    <t>左肺下叶后段肿块，考虑周围型肺癌；病灶周围左肺下叶后段小结节，考虑肺内转移瘤可能性大。肺气肿。两侧锁骨下区、纵隔及左肺门淋巴结，考虑转移。两侧腋窝小淋巴结。肝小囊肿。右肾囊肿。T2椎体小结节，骨岛可能性大，建议复查。左肺下叶后段见一类圆形软组织密度肿物，大小约32MM×28MM，略呈浅分叶状，边缘毛糙，可见多发短毛刺，部分与左下胸膜粘连，密度欠均匀，内见空洞，增强扫描不均匀强化。左肺下叶后段（肿块上方）另见一小结节，直径约3MM，边界清，增强见轻度强化。余肺见多发散在小圆形透亮区。气管及支气管分支未见明显狭窄及异常扩张。两侧锁骨下区、左下、上气管旁、隆突上、左肺门见多个淋巴结，部分肿大，大者约21MM×17MM，边界尚清，密度尚均匀，增强扫描见强化。两侧腋窝见多个小淋巴结，边界清，大者短径约7MM。两侧胸腔未见积液。右侧胸膜无增厚、粘连。肝脏轮廓未见明显异常，各叶比例在正常范围以内，其外形光整，密度不均匀，肝S8、S5各见一小圆形低密度灶，大者直径约5MM，边界清，无强化。余肝实质未见异常密度及异常强化灶。肝内胆管未见明显异常，胆囊未见明显扩张，胆总管未扩张。肝门区未见明显异常。门静脉未见明显异常。脾大小未见明显异常，密度均匀。胰腺大小、形态未见明显异常，密度均匀。右肾见一类圆形低密度灶，边界清，直径约15MM，无强化。左肾未见明显异常。两肾下腺未见明显异常。腹腔干、腹主动脉旁、肠系膜根部未见肿大淋巴结。T2椎体见一小结节状高密度灶，直径约5MM。余扫描范围内骨质结构未见破坏征象。</t>
+    <t>左肺下叶后段肿块，考虑周围型肺癌；病灶周围左肺下叶后段小结节，考虑肺内转移瘤可能性大。_x0004_肺气肿。_x0004_两侧锁骨下区、纵隔及左肺门淋巴结，考虑转移。两侧腋窝小淋巴结。_x0004_肝小囊肿。右肾囊肿。_x0004_T2椎体小结节，骨岛可能性大，建议复查。左肺下叶后段见一类圆形软组织密度肿物，大小约32MM×28MM，略呈浅分叶状，边缘毛糙，可见多发短毛刺，部分与左下胸膜粘连，密度欠均匀，内见空洞，增强扫描不均匀强化。左肺下叶后段（肿块上方）另见一小结节，直径约3MM，边界清，增强见轻度强化。余肺见多发散在小圆形透亮区。_x0004_气管及支气管分支未见明显狭窄及异常扩张。_x0004_两侧锁骨下区、左下、上气管旁、隆突上、左肺门见多个淋巴结，部分肿大，大者约21MM×17MM，边界尚清，密度尚均匀，增强扫描见强化。两侧腋窝见多个小淋巴结，边界清，大者短径约7MM。_x0004_两侧胸腔未见积液。右侧胸膜无增厚、粘连。_x0004_肝脏轮廓未见明显异常，各叶比例在正常范围以内，其外形光整，密度不均匀，肝S8、S5各见一小圆形低密度灶，大者直径约5MM，边界清，无强化。余肝实质未见异常密度及异常强化灶。肝内胆管未见明显异常，胆囊未见明显扩张，胆总管未扩张。肝门区未见明显异常。门静脉未见明显异常。脾大小未见明显异常，密度均匀。胰腺大小、形态未见明显异常，密度均匀。右肾见一类圆形低密度灶，边界清，直径约15MM，无强化。左肾未见明显异常。两肾下腺未见明显异常。_x0004_腹腔干、腹主动脉旁、肠系膜根部未见肿大淋巴结。_x0004_T2椎体见一小结节状高密度灶，直径约5MM。余扫描范围内骨质结构未见破坏征象。</t>
   </si>
   <si>
     <t>32MM×28MM</t>
@@ -4037,7 +4037,7 @@
     <t>左肺下叶后段小结节,两侧锁骨下区,纵隔及左肺门淋巴结</t>
   </si>
   <si>
-    <t>1.胰十二指肠MT术后，术区糖代谢增高，考虑为炎性改变可能，请随访除外局部复发；肝脏膈顶部和腹膜后转移可能；肝脏左叶延迟相糖代谢轻度增高灶，请随访除外转移；2.左乳MT术后改变；余基本同本院2015-11-11PET/CT图像相仿。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像，并与本院2015-11-11PET/CT图像进行比较。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部和鼻咽部PET/CT图像未见糖代谢异常及占位；两侧下颌窦内见少许软组织密度影，考虑为慢性炎症；余副鼻窦未见明显异常。颈部PET/CT图像示两侧颌上、颈血管旁、颈后三角及锁骨区见多枚糖代谢轻度增高的小淋巴结，糖代谢最高且较大者及位于左侧颈血管旁，大小约为9.6MM×5.8MM，最大SUV值约为3.1，考虑为慢性炎症；口咽、喉咽部无占位；甲状腺无肿大，其内密度不均匀，未见明显糖代谢异常增高。胸部PET/CT图像示左乳MT术后缺如，术区未见明显糖代谢异常增高灶或占位；两肺纹理增多，左肺下叶后段不伴糖代谢增高的小结节及右肺上叶后基底段钙化灶较前相仿；各级支气管腔通畅；纵隔、两肺门、腋窝无明显糖代谢异常增高灶或肿大淋巴结；两侧胸膜无增厚；两侧胸腔无积液；心脏无明显增大；右侧乳腺无殊。腹部PET/CT图像示胰十二指肠MT根治术，胆肠和胰肠吻合口处糖代谢增高，早期最大SUV值分别为3.8和3.7，延迟2小时最大SUV值分别为4.3和5.2，滞留指数分别为13.1%和40.5%；邻近腹膜后软组织密度影增多伴糖代谢增高，糖代谢最高者位于左肾门水平，早期最大SUV值约为2.5，延迟2小时最大SUV值约为2.4，范围约为13.5MM×10.0MM；肝脏膈顶部见一直径约为8.0MM稍低密度灶，早期未见明显糖代谢异常增高，延迟相局部糖代谢轻度增高，最大SUV值约为3.1；延迟相肝左叶新增小灶性糖代谢增高，最大SUV值约为4.0，局部肝实质未见明显密度改变；肝脏左叶近膈顶见一大小约为14.4MM×9.7MM、无糖代谢增高的囊性灶；胃壁均匀性轻度糖代谢生理性增强；胆囊缺如（手术切除）；脾、两肾、肾下腺无殊；腹膜后无明显糖代谢异常增高灶或肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈差；子宫前壁见一直径约为15.7MM的结节；两附件区未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像示全身骨骼未见明显糖代谢异常增高。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质稍增生，考虑为退行性改变。</t>
+    <t>1.胰十二指肠MT术后，术区糖代谢增高，考虑为炎性改变可能，请随访除外局部复发；肝脏膈顶部和腹膜后转移可能；肝脏左叶延迟相糖代谢轻度增高灶，请随访除外转移；_x0004_2.左乳MT术后改变；余基本同本院2015-11-11PET/CT图像相仿。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像，并与本院2015-11-11PET/CT图像进行比较。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部和鼻咽部PET/CT图像未见糖代谢异常及占位；两侧下颌窦内见少许软组织密度影，考虑为慢性炎症；余副鼻窦未见明显异常。颈部PET/CT图像示两侧颌上、颈血管旁、颈后三角及锁骨区见多枚糖代谢轻度增高的小淋巴结，糖代谢最高且较大者及位于左侧颈血管旁，大小约为9.6MM×5.8MM，最大SUV值约为3.1，考虑为慢性炎症；口咽、喉咽部无占位；甲状腺无肿大，其内密度不均匀，未见明显糖代谢异常增高。胸部PET/CT图像示左乳MT术后缺如，术区未见明显糖代谢异常增高灶或占位；两肺纹理增多，左肺下叶后段不伴糖代谢增高的小结节及右肺上叶后基底段钙化灶较前相仿；各级支气管腔通畅；纵隔、两肺门、腋窝无明显糖代谢异常增高灶或肿大淋巴结；两侧胸膜无增厚；两侧胸腔无积液；心脏无明显增大；右侧乳腺无殊。腹部PET/CT图像示胰十二指肠MT根治术，胆肠和胰肠吻合口处糖代谢增高，早期最大SUV值分别为3.8和3.7，延迟2小时最大SUV值分别为4.3和5.2，滞留指数分别为13.1%和40.5%；邻近腹膜后软组织密度影增多伴糖代谢增高，糖代谢最高者位于左肾门水平，早期最大SUV值约为2.5，延迟2小时最大SUV值约为2.4，范围约为13.5MM×10.0MM；肝脏膈顶部见一直径约为8.0MM稍低密度灶，早期未见明显糖代谢异常增高，延迟相局部糖代谢轻度增高，最大SUV值约为3.1；延迟相肝左叶新增小灶性糖代谢增高，最大SUV值约为4.0，局部肝实质未见明显密度改变；肝脏左叶近膈顶见一大小约为14.4MM×9.7MM、无糖代谢增高的囊性灶；胃壁均匀性轻度糖代谢生理性增强；胆囊缺如（手术切除）；脾、两肾、肾下腺无殊；腹膜后无明显糖代谢异常增高灶或肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈差；子宫前壁见一直径约为15.7MM的结节；两附件区未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像示全身骨骼未见明显糖代谢异常增高。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质稍增生，考虑为退行性改变。</t>
   </si>
   <si>
     <t>胰十二指肠,左乳</t>
@@ -4046,7 +4046,7 @@
     <t>肝脏膈顶部,腹膜后</t>
   </si>
   <si>
-    <t>胸肋SPECT/CT显像结合全身骨平面显像：新增第9胸椎转移可能；左侧第6肋腋段病变显像剂摄取较前减低；第4腰椎压缩性改变可能。显像方法：&lt;?xml：namespaceprefix=ons="urn：schemas-microsoft-com：office：office"/&gt;静脉注射99MMTc-MDP约3小时后，患者取仰卧位，ANT、POST位采集全身骨骼平面影像。全身骨骼平面显像完毕后，患者取仰卧位，SPECT/CT采集上胸椎至腰椎断层影像，经计算机处理得到横断面、矢状面、冠状面影像。与2017-9-6片比较。影像所见：全身骨骼显影清晰，显像剂分布不均匀对称，左侧第6肋腋段显像剂摄取较前减低，第9胸椎和第4腰椎显像剂摄取较前增浓；余处骨骼未见明显显像剂异常浓聚或稀疏缺损表现。　SPECT/CT融合图像示左侧第6肋腋段骨质密度较前增高，骨皮质走行扭曲，显像剂摄取较前减低，最大SUV值约为48.8；第9胸椎椎体右侧骨质密度欠均匀伴显像剂浓聚；第4腰椎椎体下缘局部凹陷伴显像剂浓聚；余处骨骼未见明显骨质破坏吸收征象或显像剂异常分布。</t>
+    <t>胸肋SPECT/CT显像结合全身骨平面显像：新增第9胸椎转移可能；左侧第6肋腋段病变显像剂摄取较前减低；第4腰椎压缩性改变可能。显像方法：&lt;?xml:namespaceprefix=ons="urn:schemas-microsoft-com:office:office"/&gt;静脉注射99MMTc-MDP约3小时后，患者取仰卧位，ANT、POST位采集全身骨骼平面影像。全身骨骼平面显像完毕后，患者取仰卧位，SPECT/CT采集上胸椎至腰椎断层影像，经计算机处理得到横断面、矢状面、冠状面影像。与2017-9-6片比较。影像所见：全身骨骼显影清晰，显像剂分布不均匀对称，左侧第6肋腋段显像剂摄取较前减低，第9胸椎和第4腰椎显像剂摄取较前增浓；余处骨骼未见明显显像剂异常浓聚或稀疏缺损表现。　SPECT/CT融合图像示左侧第6肋腋段骨质密度较前增高，骨皮质走行扭曲，显像剂摄取较前减低，最大SUV值约为48.8；第9胸椎椎体右侧骨质密度欠均匀伴显像剂浓聚；第4腰椎椎体下缘局部凹陷伴显像剂浓聚；余处骨骼未见明显骨质破坏吸收征象或显像剂异常分布。</t>
   </si>
   <si>
     <t>第9胸椎</t>
@@ -4061,19 +4061,19 @@
     <t>脂肪肝，肝多发囊肿；右侧锁骨下见淋巴结，必要时建议进一步检查肝肋上斜切122MM/（－），剑上纵切56MM/2指，肝区回声密集增强，肝内见数个无回声团块，最大32MM×22MM。门脉主干内径10MM。脾肋间切30MM/（－）。胆囊68MM×25MM，胆总管4MM。胰头13MM，胰体11MM，胰尾15MM。左肾100MM×45MM×43MM，肾盂分离（－）。右肾102MM×50MM×46MM，肾盂分离（－）。两侧输尿管未见明显扩张。两侧肾下腺区未见明显肿块回声。CDFI示肝胆胰肾血流正常。右侧锁骨下见数个低回声团块，最大14MM×8MM，髓质增厚，CDFI示其内点状彩色血流。两侧颌上、两侧颈血管旁及左侧锁骨下未见明显肿块回声。CDFI未见异常血流。</t>
   </si>
   <si>
-    <t>肝脏MT肝移植术后综合治疗后，与2014.10.14本院PET/CT图像比较：1.新增纵隔、两肺门多发淋巴结转移；新增两肺多发转移灶；左心膈角淋巴结较前略增大、糖代谢略增高，上腔静脉背侧淋巴结较前增大，请随访除外转移；2.移植肝切缘旁邻近膈肌条片状高密度影较前糖代谢增高、剑突周围软组织影增多伴糖代谢异常增高，均考虑为放疗后炎性反应可能，请结合临床随访；肝脏左叶病灶射频治疗后改变，病灶基本坏死；3.原右肺上叶病灶消失；左上腹壁切口疝；余处较前相仿。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像，并与2014.10.14本院PET/CT图像比较。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部、鼻咽PET/CT图像示眼球、眼眶内、鼻咽部、咽旁间隙未见明显糖代谢异常或占位。两侧下颌窦慢性炎症较前相仿，余副鼻窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示新增纵隔及两肺门多发糖代谢异常增高的肿大淋巴结，部分融合，糖代谢最高者位于腔静脉气管间隙，最大SUV值为5.3，大小约为16.2MM×19.1MM，最大者位于隆突上，最大SUV值为4.1，大小约为45.5MM×24.5MM；新增两肺多发不规则结节影，伴不同程度糖代谢异常增高，右肺上叶前内基底段为著，最大SUV值为3.6，大小约为22.4MM×20.4MM；左肺下叶尖段小钙化灶较前相仿；原右肺上叶后基底段结节消失；各级支气管腔通畅；两侧胸膜无增厚；两侧胸腔无积液；心脏无明显增大；两侧腋窝无明显肿大淋巴结。腹部PET/CT图像见肝MT肝移植及综合治疗后，移植肝切缘旁邻近膈肌见条片状高密度影，较前糖代谢增高，最大SUV值为13.5，延迟1.5h显像最大SUV值为13.6；新增肝脏左叶大小约为26.7MM×29.7MM低密度灶，不伴糖代谢异常增高，早期相及延迟1.5h显像最大SUV值分别为2.4、2.5；新增肝脏左叶结节状糖代谢异常增高灶，早期相及延迟相最大SUV值分别为3.1、1.7，未见明显密度改变，考虑为生理性摄取；余肝实质未见糖代谢异常增高及占位；肝内外胆管无扩张；新增剑突周围软组织影增多伴糖代谢异常增高，最大SUV值为4.4；左心膈角淋巴结较前略增大、糖代谢略增高，最大SUV值为1.3，大小约为12.2MM×5.7MM；上腔静脉背侧不伴糖代谢异常增高的淋巴结较前增大，直径约为10.4MM；脾脏肿大，未见糖代谢异常增高及占位，较前基本相仿；副脾结节较前相仿；胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；胆囊术后缺如；胰、两肾下腺、肾、输尿管无殊；左上腹壁切口不伴糖代谢增高，可见肠道局部疝入；腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱壁光滑无增厚；两侧精囊腺形态可；两侧膀胱精囊三角对称；前列腺饱满，密度均；盆腔内未见占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示第10-11胸椎糖代谢减低，未见骨质破坏，结合病史考虑为放疗后改变；余处骨骼未见异常糖代谢增高或骨质破坏。</t>
+    <t>肝脏MT肝移植术后综合治疗后，与2014.10.14本院PET/CT图像比较：_x0004_1.新增纵隔、两肺门多发淋巴结转移；新增两肺多发转移灶；左心膈角淋巴结较前略增大、糖代谢略增高，上腔静脉背侧淋巴结较前增大，请随访除外转移；_x0004_2.移植肝切缘旁邻近膈肌条片状高密度影较前糖代谢增高、剑突周围软组织影增多伴糖代谢异常增高，均考虑为放疗后炎性反应可能，请结合临床随访；肝脏左叶病灶射频治疗后改变，病灶基本坏死；_x0004_3.原右肺上叶病灶消失；左上腹壁切口疝；余处较前相仿。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像，并与2014.10.14本院PET/CT图像比较。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部、鼻咽PET/CT图像示眼球、眼眶内、鼻咽部、咽旁间隙未见明显糖代谢异常或占位。两侧下颌窦慢性炎症较前相仿，余副鼻窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示新增纵隔及两肺门多发糖代谢异常增高的肿大淋巴结，部分融合，糖代谢最高者位于腔静脉气管间隙，最大SUV值为5.3，大小约为16.2MM×19.1MM，最大者位于隆突上，最大SUV值为4.1，大小约为45.5MM×24.5MM；新增两肺多发不规则结节影，伴不同程度糖代谢异常增高，右肺上叶前内基底段为著，最大SUV值为3.6，大小约为22.4MM×20.4MM；左肺下叶尖段小钙化灶较前相仿；原右肺上叶后基底段结节消失；各级支气管腔通畅；两侧胸膜无增厚；两侧胸腔无积液；心脏无明显增大；两侧腋窝无明显肿大淋巴结。腹部PET/CT图像见肝MT肝移植及综合治疗后，移植肝切缘旁邻近膈肌见条片状高密度影，较前糖代谢增高，最大SUV值为13.5，延迟1.5h显像最大SUV值为13.6；新增肝脏左叶大小约为26.7MM×29.7MM低密度灶，不伴糖代谢异常增高，早期相及延迟1.5h显像最大SUV值分别为2.4、2.5；新增肝脏左叶结节状糖代谢异常增高灶，早期相及延迟相最大SUV值分别为3.1、1.7，未见明显密度改变，考虑为生理性摄取；余肝实质未见糖代谢异常增高及占位；肝内外胆管无扩张；新增剑突周围软组织影增多伴糖代谢异常增高，最大SUV值为4.4；左心膈角淋巴结较前略增大、糖代谢略增高，最大SUV值为1.3，大小约为12.2MM×5.7MM；上腔静脉背侧不伴糖代谢异常增高的淋巴结较前增大，直径约为10.4MM；脾脏肿大，未见糖代谢异常增高及占位，较前基本相仿；副脾结节较前相仿；胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；胆囊术后缺如；胰、两肾下腺、肾、输尿管无殊；左上腹壁切口不伴糖代谢增高，可见肠道局部疝入；腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱壁光滑无增厚；两侧精囊腺形态可；两侧膀胱精囊三角对称；前列腺饱满，密度均；盆腔内未见占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示第10-11胸椎糖代谢减低，未见骨质破坏，结合病史考虑为放疗后改变；余处骨骼未见异常糖代谢增高或骨质破坏。</t>
   </si>
   <si>
     <t>纵隔,两肺门多发淋巴结,两肺,左心膈角淋巴结,上腔静脉背侧淋巴结</t>
   </si>
   <si>
-    <t>左上肺癌术后化疗后，与2016-6-22片对比：左肺、右肺叶小类结节灶，考虑增殖灶，较前未见明显变化。右肺上叶及左肺中叶少许纤维增殖灶。左上胸膜稍增厚。肝小囊肿。两肾囊肿。右侧肾下腺结节状稍增粗，较前相仿，建议随诊。左上肺癌术后化疗后，与2016-6-22片对比：左肺上叶术后缺如，左肺上叶支气管中断，断端见金属密影，未见明确软组织肿块影或异常强化灶。左肺、右肺叶见散在小类结节灶，大者短径约3MM，边界欠清，密度欠均匀，较前变化不明显；右肺上叶及左肺中叶尚见少许条索影，边界欠清。气管及余支气管分支未见明显狭窄及异常扩张。纵隔及两肺门未见明显肿大淋巴结。两侧胸腔未见积液。左上胸膜稍增厚。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝内见数个小类圆形低密度灶，直径约2~4MM，边界清，密度均匀，未见明显强化，较前变化不明显。肝内胆管未见扩张，其内未见结石。胆囊大小未见异常，其内未见结石。胆总管未见扩张，其内未见结石。肝门区结构未见异常。门静脉未见充盈缺损。脾大小未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾见多发小囊性低密度病变，较大者短径约10MM，边界清，增强未见强化。右侧肾下腺见结节状稍增粗，较前变化不明显。左肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见明显肿大淋巴结。扫描范围内骨质未见明显破坏征象。</t>
+    <t>左上肺癌术后化疗后，与2016-6-22片对比：_x0004_左肺、右肺叶小类结节灶，考虑增殖灶，较前未见明显变化。_x0004_右肺上叶及左肺中叶少许纤维增殖灶。_x0004_左上胸膜稍增厚。_x0004_肝小囊肿。两肾囊肿。_x0004_右侧肾下腺结节状稍增粗，较前相仿，建议随诊。左上肺癌术后化疗后，与2016-6-22片对比：_x0004_左肺上叶术后缺如，左肺上叶支气管中断，断端见金属密影，未见明确软组织肿块影或异常强化灶。左肺、右肺叶见散在小类结节灶，大者短径约3MM，边界欠清，密度欠均匀，较前变化不明显；右肺上叶及左肺中叶尚见少许条索影，边界欠清。_x0004_气管及余支气管分支未见明显狭窄及异常扩张。_x0004_纵隔及两肺门未见明显肿大淋巴结。_x0004_两侧胸腔未见积液。左上胸膜稍增厚。_x0004_肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝内见数个小类圆形低密度灶，直径约2~4MM，边界清，密度均匀，未见明显强化，较前变化不明显。肝内胆管未见扩张，其内未见结石。胆囊大小未见异常，其内未见结石。胆总管未见扩张，其内未见结石。肝门区结构未见异常。门静脉未见充盈缺损。_x0004_脾大小未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。_x0004_两肾见多发小囊性低密度病变，较大者短径约10MM，边界清，增强未见强化。右侧肾下腺见结节状稍增粗，较前变化不明显。左肾下腺未见异常。_x0004_膈脚后、胃右、腹腔干、腹主动脉旁未见明显肿大淋巴结。_x0004_扫描范围内骨质未见明显破坏征象。</t>
   </si>
   <si>
     <t>左肺癌化疗后，与2013-5-21日片对比：左肺下叶后段病灶，较前稍缩小。两肺多发小结节，较前缩小。左锁下、纵隔、左肺门淋巴结，较前变化不大。左侧肋胸膜局部增厚并强化，较前变化不大。肝内数个囊肿。胸骨、多个椎体及右侧第2、第11后肋骨质改变，较前变化不大。左肺癌化疗后，与2013-5-21日片对比：左肺下叶后段见一类结节灶，边界欠清，最大层面大小约14MM×12MM，呈分叶状，密度不均匀，增强扫描不均匀强化，与邻近侧胸壁胸膜牵拉、粘连，与前片对比稍缩小。两肺散在数个结节、类结节影，边界部分清楚，部分不清，最大者直径约5MM。气管及支气管分支未见明显狭窄及异常扩张。左锁下、左下气管旁、两上气管旁、主肺动脉窗、隆突上、两肺门见多枚淋巴结，最大者短径约7MM，增强扫描不均匀强化。两侧胸腔未见积液。左侧肋胸膜不均匀增厚，增强扫描较明显强化，较前变化不大，右侧胸膜无增厚。肝脏轮廓未见明显异常，各叶比例在正常范围以内，其外形光整，肝S2、S4、S8见多个类圆形低密度影，边界尚清，最大者约12MM×12MM，增强扫描未见明显强化。肝内胆管未见明显异常，胆囊未见明显扩张，胆总管未扩张。肝门区未见明显异常。门静脉未见明显异常。脾大小未见明显异常，密度均匀。胰腺大小、形态未见明显异常，密度均匀。两肾及两侧肾下腺未见明显异常。腹膜后未见肿大淋巴结胸骨、胸1、5、12椎体、腰1椎体、右侧第2后肋、右侧第11后肋骨质密度不均匀，见点状、小片状密度增高影，边界尚清。</t>
   </si>
   <si>
-    <t>肺癌综合治疗后、全脑放疗后：两肺下叶、右肺上叶背段多发结节，考虑转移可能性大，左下肺前段结节较前稍大，余基本同前。两肺上叶少许纤维增殖钙化灶灶，大致同前。小叶中央型肺气肿，较前相仿。右侧叶间胸膜小结节状增厚，较前变化不明显。两肾下腺病变，较前相仿。左侧小脑半球病灶范围较前变化不大。副鼻窦炎。盆腔未见明确病变。肺癌综合治疗后、全脑放疗后，与2017-06-26片对比：右肺下叶见金属致密影，其旁少许索条影，与邻近胸膜牵拉粘连。两肺下叶、右肺上叶背段多发类结节灶，最大者约为13MM×6MM，边界尚清，增强扫描见不均匀明显强化，邻近见少许条片及斑片影。两肺上叶见少许条索状高密度灶及小类结节状致密灶，边界清楚。两肺见多个小类圆形无肺纹理区。气管及支气管分支通畅。纵隔及两肺门未见明显肿大淋巴结。两侧胸腔未见积液。右侧叶间胸膜见小结节状增厚，直径约为2MM。肝脏形态未见异常，各叶比例正常，其外形轮廓光整，肝实质密度尚均匀，未见异常强化。肝内胆管、胆总管未见扩张，内未见结石影。胆囊大小未见异常，其内未见结石影。肝门区未见异常。门静脉未见异常。脾、胰腺、两肾大小、形态未见异常，密度均匀。右肾下腺见一结节，大小约为27MM×18MM，边界清楚，轻中度强化，较前缩小。左肾下腺见结节，大小约为26MM×20MM，边界清楚，增强扫描见轻度强化，较前稍缩小。膀胱充盈良好，境界清楚。精囊大小、形态未见明显异常，密度均匀，膀胱精囊角存在。前列腺大小，形态未见异常，密度均匀。盆腔未见软组织肿块影。直肠境界清楚，壁不厚，未见明确异常密度灶。两侧髂血管旁、腹股沟未见肿大淋巴结。左侧小脑半球见稍低密度病灶，边界清，大小约19MM×12MM，可见轻度强化，与前片对比，病灶范围变化不大。余脑实质密度均匀。脑沟、裂、池不宽，脑室对称不大，中线结构无移位，幕上结构未见异常，颅骨未见骨质异常。两侧筛窦及下颌窦粘膜稍增厚。胸2椎体内见低密度灶，边界清，大小约4MM×3MM，扫描范围内其余骨质未见明确破坏征象。</t>
+    <t>肺癌综合治疗后、全脑放疗后：_x0004_两肺下叶、右肺上叶背段多发结节，考虑转移可能性大，左下肺前段结节较前稍大，余基本同前。_x0004_两肺上叶少许纤维增殖钙化灶灶，大致同前。小叶中央型肺气肿，较前相仿。_x0004_右侧叶间胸膜小结节状增厚，较前变化不明显。_x0004_两肾下腺病变，较前相仿。_x0004_左侧小脑半球病灶范围较前变化不大。_x0004_副鼻窦炎。盆腔未见明确病变。肺癌综合治疗后、全脑放疗后，与2017-06-26片对比：_x0004_右肺下叶见金属致密影，其旁少许索条影，与邻近胸膜牵拉粘连。两肺下叶、右肺上叶背段多发类结节灶，最大者约为13MM×6MM，边界尚清，增强扫描见不均匀明显强化，邻近见少许条片及斑片影。两肺上叶见少许条索状高密度灶及小类结节状致密灶，边界清楚。两肺见多个小类圆形无肺纹理区。气管及支气管分支通畅。_x0004_纵隔及两肺门未见明显肿大淋巴结。两侧胸腔未见积液。右侧叶间胸膜见小结节状增厚，直径约为2MM。_x0004_肝脏形态未见异常，各叶比例正常，其外形轮廓光整，肝实质密度尚均匀，未见异常强化。肝内胆管、胆总管未见扩张，内未见结石影。胆囊大小未见异常，其内未见结石影。肝门区未见异常。门静脉未见异常。脾、胰腺、两肾大小、形态未见异常，密度均匀。右肾下腺见一结节，大小约为27MM×18MM，边界清楚，轻中度强化，较前缩小。左肾下腺见结节，大小约为26MM×20MM，边界清楚，增强扫描见轻度强化，较前稍缩小。_x0004_膀胱充盈良好，境界清楚。精囊大小、形态未见明显异常，密度均匀，膀胱精囊角存在。前列腺大小，形态未见异常，密度均匀。盆腔未见软组织肿块影。直肠境界清楚，壁不厚，未见明确异常密度灶。两侧髂血管旁、腹股沟未见肿大淋巴结。_x0004_左侧小脑半球见稍低密度病灶，边界清，大小约19MM×12MM，可见轻度强化，与前片对比，病灶范围变化不大。余脑实质密度均匀。脑沟、裂、池不宽，脑室对称不大，中线结构无移位，幕上结构未见异常，颅骨未见骨质异常。两侧筛窦及下颌窦粘膜稍增厚。_x0004_胸2椎体内见低密度灶，边界清，大小约4MM×3MM，扫描范围内其余骨质未见明确破坏征象。</t>
   </si>
   <si>
     <t>两肺下叶,右肺上叶背段,左侧小脑半球</t>
@@ -4091,7 +4091,7 @@
     <t>None与2011-03-07胸部CT比较：1.食管上段管壁环周性增厚较前减轻，最厚处现约15MM（IMA35），原约16MM（IMA35）；外膜模糊，同腹主动脉接触面小于90度。近端食管扩张。2.纵隔2R、7-9组及胸主动脉后方多发肿大淋巴结较前缩小，现较大约16MM×15MM(IMA31)，原约31MM×13MM（IMA31）。左气管食管沟淋巴结大小约为15MM×13MM（IMA10），原约19MM×13MM（IMA10）。3.右肺上叶及左肺下叶新见斑片状渗出、实变影，考虑放射性炎症可能性大；左肺中叶结节影较前增大（IMA46、49），现较大者约8MM×5MM（IMA49），原约4MM（IMA47）右侧叶间胸膜小结节同前（IMA25）。4.两侧胸膜光滑，未见胸水。5.胸壁诸骨未见骨质破坏灶。</t>
   </si>
   <si>
-    <t>主动脉瓣钙化常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，32，20-37，右房内径，39，19-40，右室舒张末内径，44，35-56，右室收缩末内径，28，23-35，室间隔厚度，10，6-11，右室后壁厚度，9，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣钙化，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约37MMHg，。，三、，右心功能测定：，LVEF：66%；，二尖瓣血流图示E/A，&amp;lt；，1；DT：215MMs，四、组织多普勒测定：，DTI示S波峰值：10.2CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
+    <t>主动脉瓣钙化常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,32,20-37,右房内径,39,19-40,右室舒张末内径,44,35-56,右室收缩末内径,28,23-35,室间隔厚度,10,6-11,右室后壁厚度,9,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。,3、主动脉不增宽，主动脉瓣钙化，开放不受限，彩色多普勒未测及主动脉瓣反流。,4、左房室不大，肺动脉不增宽，,连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约37MMHg,。,三、,右心功能测定：,LVEF：66%;,二尖瓣血流图示E/A,&amp;lt;,1;DT:215MMs,四、组织多普勒测定：,DTI示S波峰值:10.2CM/s;E'/A',&amp;lt;,1,五、结论：,</t>
   </si>
   <si>
     <t>C7-T4椎体及附件、C7-T1棘突多发骨质破坏，转移瘤可能大，T1病理性骨折，C7-T1水平椎管受侵。颈椎退变，C6椎体骨髓增殖性改变。C2-7椎间盘突出、变性，C3-6水平黄韧带肥厚，椎管狭窄。颈椎曲度略变直，部分椎体缘骨质增生，T1椎体变扁，所见范围C7-T4椎体及部分附件、棘突可见片状长T1信号，C7-T1水平棘突周围软组织可见散在结节状、条片状高信号，局部蔓延至C7-T1水平椎管内硬膜外，增强扫描后明显强化，C6椎体明显高信号改变。C2-7椎间盘T2WI下信号减低，纤维环向后突出，颈髓受压变窄，C3-6水平黄韧带肥厚，椎管狭窄。颈髓未见异常信号。</t>
@@ -4103,7 +4103,7 @@
     <t>肝囊肿；肝左叶钙化灶；左肾小结石肝肋上斜切114MM/（－），剑上纵切49MM/2指，肝区回声较密尚均，右外叶见18MM×13MM无回声区，肝左叶膈顶见6MM强回声，门脉主干内径10MM，左支内径7MM，流速0.16MM/s，主干及右左支血流通畅，为向肝血流，流速曲线正常，脾门处脾静脉内径5MM，血流通畅。肝静脉血流通畅。脾肋间切26MM/（－）。胆囊83MM×21MM，胆总管4MM。胰头15MM，胰体12MM，胰尾16MM。左肾101MM×42MM×45MM，内见约4MM强回声，肾盂分离（－），右肾106MM×47MM×46MM，肾盂分离（－）。两侧输尿管未见明显扩张。两侧肾下腺区未见明显肿块回声。CDFI示肝肾血流正常。</t>
   </si>
   <si>
-    <t>左肺上叶近肺门区团块状病灶，考虑肺癌，伴周围阻塞性炎症。两肺下叶及左肺中叶淡薄类结节灶，转移瘤待排。左肺上叶外基底段及后基底段近胸膜处斑片状稍高密度灶，考虑炎症。左肺下叶斑片及条索灶，考虑纤维增殖灶。左肺门、纵隔及右侧腋窝淋巴结肿大，考虑转移。左侧腋窝、两侧锁骨下小淋巴结，性质待定。两侧叶间胸膜及左侧肋胸膜增厚，转移？左侧胸腔少量积液，部分为包裹性积液。肝S2、4、6低密度灶，考虑肝囊肿。两肺纹理增粗，左肺上叶近肺门区见不规则病灶，边界不清楚，病灶大小约49MM×64MM，可见浅分叶，病灶边缘毛糙，病灶内见坏死，与左肺门肿大淋巴结分界不清楚，病灶包绕左肺上叶支气管，病灶周围见斑片状稍高密度灶，边缘模糊，左肺上叶外基底段及后基底段近胸膜处见斑片状稍高密度灶，边缘模糊。两肺下叶及左肺中叶见散在类结节灶，密度较淡，边界欠清楚，大小约3~4MM。左肺下叶见少许条索灶，边界尚清楚。气管及右支气管分支通畅。左肺门、左侧下、上气管旁、隆突上、右侧腋窝见多发肿大淋巴结，最大者约33MM×58MM，部分淋巴结内见坏死，增强后不均匀强化。左侧腋窝、两侧锁骨下见小淋巴结，短径约3~7MM。两侧叶间胸膜及左侧肋胸膜见不均匀增厚，部分呈类结节状，边界欠清楚，以左侧为著。左侧胸腔见少许积液，部分为包裹性积液。右侧胸腔未见积液。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝S2、4、6见低密度灶，大小约4~8MM，未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描所见骨质未见明确破坏征象。</t>
+    <t>左肺上叶近肺门区团块状病灶，考虑肺癌，伴周围阻塞性炎症。_x0004_两肺下叶及左肺中叶淡薄类结节灶，转移瘤待排。_x0004_左肺上叶外基底段及后基底段近胸膜处斑片状稍高密度灶，考虑炎症。_x0004_左肺下叶斑片及条索灶，考虑纤维增殖灶。_x0004_左肺门、纵隔及右侧腋窝淋巴结肿大，考虑转移。左侧腋窝、两侧锁骨下小淋巴结，性质待定。两侧叶间胸膜及左侧肋胸膜增厚，转移？_x0004_左侧胸腔少量积液，部分为包裹性积液。_x0004_肝S2、4、6低密度灶，考虑肝囊肿。两肺纹理增粗，左肺上叶近肺门区见不规则病灶，边界不清楚，病灶大小约49MM×64MM，可见浅分叶，病灶边缘毛糙，病灶内见坏死，与左肺门肿大淋巴结分界不清楚，病灶包绕左肺上叶支气管，病灶周围见斑片状稍高密度灶，边缘模糊，左肺上叶外基底段及后基底段近胸膜处见斑片状稍高密度灶，边缘模糊。_x0004_两肺下叶及左肺中叶见散在类结节灶，密度较淡，边界欠清楚，大小约3~4MM。左肺下叶见少许条索灶，边界尚清楚。气管及右支气管分支通畅。_x0004_左肺门、左侧下、上气管旁、隆突上、右侧腋窝见多发肿大淋巴结，最大者约33MM×58MM，部分淋巴结内见坏死，增强后不均匀强化。左侧腋窝、两侧锁骨下见小淋巴结，短径约3~7MM。_x0004_两侧叶间胸膜及左侧肋胸膜见不均匀增厚，部分呈类结节状，边界欠清楚，以左侧为著。左侧胸腔见少许积液，部分为包裹性积液。右侧胸腔未见积液。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝S2、4、6见低密度灶，大小约4~8MM，未见强化。_x0004_肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。_x0004_两肾所见正常。两肾下腺所见正常。_x0004_膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_扫描所见骨质未见明确破坏征象。</t>
   </si>
   <si>
     <t>左肺上叶近肺门区</t>
@@ -4121,7 +4121,7 @@
     <t>27MM×40MM</t>
   </si>
   <si>
-    <t>心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号右心舒张功能减低，收缩功能正常心超声检测值：LA   31MM     AO     26MM        MV E 0.67MM/s     EF 62%LV   55MM     IVS     9MM           A 0.80MM/s     FS 33% RA   32MM     LVPW   10MMRV   17MM     PA     21MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图未见异常。</t>
+    <t>心脏结构及运动未见异常_x0004__x0004_各房室腔及大血管未探及异常血流信号_x0004__x0004_右心舒张功能减低，收缩功能正常心超声检测值：_x0004__x0004_LA   31MMAO     26MMV E 0.67m/s     EF 62%_x0004__x0004_LV   55MMIVS     9MMA 0.80m/s     FS 33% _x0004__x0004_RA   32MMLVPW   10MM_x0004__x0004_RV   17MMPA     21MM_x0004__x0004__x0004__x0004_二维及Ｍ型超声心动图特征：_x0004__x0004_升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；_x0004__x0004_各房室腔径正常。_x0004__x0004_室壁厚度及运动正常。房、室间隔连续性完好。_x0004__x0004_各组瓣膜形态、结构及运动正常。_x0004__x0004_心包及心包腔未见异常。_x0004__x0004_彩色及频谱多普勒超声心动图未见异常。</t>
   </si>
   <si>
     <t>结肠癌术后改变；肠系膜区结节、腹主动脉旁、右侧髂总动脉旁结节，考虑淋巴结转移可能性大，部分较前增大。膀胱直肠窝内结节，考虑转移瘤可能性大，较前无明显变化。两肺病变，考虑纤维增殖灶，大致同前。左肺上叶结节，大致同前。肝右外叶结节，考虑转移瘤。肝S8结节，考虑肝囊肿。胆囊小结石；左肾小结石，两肾囊肿。前列腺结石。乙状结肠癌术后：局部吻合口通畅，吻合口周围系膜模糊，并可见多发结节，最大约10MM×14MM，边界欠清，增强扫描可见不均匀强化。腹主动脉旁、右侧髂总动脉旁可见数个淋巴结，最大短径约11MM，边界欠清，增强可见不均匀强化。盆腔膀胱直肠间隙可见一结节，大小约14MM×17MM，增强可见不均匀强化。膀胱充盈良好，境界清楚。精囊大小、形态正常，密度均匀，膀胱精囊角存在。前列腺大小、形态正常，内见几个点状致密灶。两肺见多发散在条索状、小斑片状及类结节状高密度影，以两下肺为著，边界尚清晰。左肺上叶外基底段见一结节，直径约6MM。气管及支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜局部增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝右外叶可见一结节，大小约16MM×20MM，边界欠清，增强扫描可见轻度强化。肝S8见一类圆形低密度灶，直径约3MM，边界清，增强未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内见结石影，直径约3MM。胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾可见数个类圆形囊性低密度灶，最大约6MM×8MM，边界清，增强未见强化；左肾见一结节样致密影。两肾下腺未见异常。</t>
@@ -4139,7 +4139,7 @@
     <t>主动脉瓣退行性变静息状态上右室整体收缩功能正常二维测值（mm）：主动脉内径：23-30-25右房内径：32升主动脉：35室间隔厚度：7右室舒末内径：50右室缩末内径：32右室后壁厚度：7左室内径：17肺动脉内径：24Doppler测值：各瓣口前向血流峰速度（m/s）二尖瓣：E峰1.1A峰0.9三尖瓣：0.6主动脉瓣：1.3肺动脉瓣：1.2心功能测值：右室舒末容积EDV：80(ml)右室缩末容积ESV：27(ml)每搏量SV：53(ml)射血分数EF：66%各心腔内径在正常范围，右室各壁向心运动良好，未见节段性运动异常。主动脉瓣左、无、右冠瓣限局性增厚，回声增强，开放尚可，关闭时未探及返流。二、三尖瓣探及微量返流。心包腔未见液性暗区。</t>
   </si>
   <si>
-    <t>左上肺癌术后化疗后改变，术区局部未见明确复发征象。两肺散在斑片及索条，考虑纤维增殖灶，病灶较前稍增多。右上肺胸膜上片状影，大致同前。右侧肋胸膜不均匀增厚，右侧斜裂不均匀结节状增厚，较前未见明显变化。两侧胸腔少量积液，部分包裹，较前未见明显变化。肝内多发囊肿，肝内胆管轻度扩张。两肾小囊肿。左上肺癌术后化疗后复查，对比2016-09-05片：左肺上叶术后缺失，左肺上叶支气管残端见线样致密影，局部未见明确软组织肿块。左残肺及右肺散在见少许斑片灶、条索病灶，与胸膜粘连，左肺下叶后段斑片状、类结节状病灶较前新发，余较前未见明显变化。右上肺胸膜上见片状密度增高影，范围约54MM×18MM，边界欠清，增强扫描明显强化，较前未见明显变化。两肺门及纵隔未见肿大淋巴结。两侧少量胸腔积液，右侧斜裂见不均、结节状增厚，较前未见明显变化。右侧胸膜不均匀增厚，增强扫描明显强化，部分见条状钙化，较前未见明显变化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝内见多发类圆形低密灶，边界清，最大者约19MM×17MM，边界清，增强扫描未见强化，较前未见明显变化。胆囊体积不大，其内未见结石，肝内胆管轻度扩张，胆总管内未见明确结石。肝门区、门静脉未见异常。脾、胰腺大小、形态正常，密度均匀。两肾见小低密灶，边界清，较大直径约4MM，增强扫描未见强化。两肾下腺未见异常。腹腔干、腹主动脉旁未见明显肿大淋巴结。左侧第4、5前肋局部骨皮质稍扭曲，未见明显异常软组织影，较前未见明显变化。</t>
+    <t>左上肺癌术后化疗后改变，术区局部未见明确复发征象。_x0004_两肺散在斑片及索条，考虑纤维增殖灶，病灶较前稍增多。_x0004_右上肺胸膜上片状影，大致同前。_x0004_右侧肋胸膜不均匀增厚，右侧斜裂不均匀结节状增厚，较前未见明显变化。_x0004_两侧胸腔少量积液，部分包裹，较前未见明显变化。_x0004_肝内多发囊肿，肝内胆管轻度扩张。_x0004_两肾小囊肿。左上肺癌术后化疗后复查，对比2016-09-05片：_x0004_左肺上叶术后缺失，左肺上叶支气管残端见线样致密影，局部未见明确软组织肿块。_x0004_左残肺及右肺散在见少许斑片灶、条索病灶，与胸膜粘连，左肺下叶后段斑片状、类结节状病灶较前新发，余较前未见明显变化。右上肺胸膜上见片状密度增高影，范围约54MM×18MM，边界欠清，增强扫描明显强化，较前未见明显变化。_x0004_两肺门及纵隔未见肿大淋巴结。_x0004_两侧少量胸腔积液，右侧斜裂见不均、结节状增厚，较前未见明显变化。右侧胸膜不均匀增厚，增强扫描明显强化，部分见条状钙化，较前未见明显变化。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝内见多发类圆形低密灶，边界清，最大者约19MM×17MM，边界清，增强扫描未见强化，较前未见明显变化。胆囊体积不大，其内未见结石，肝内胆管轻度扩张，胆总管内未见明确结石。肝门区、门静脉未见异常。_x0004_脾、胰腺大小、形态正常，密度均匀。_x0004_两肾见小低密灶，边界清，较大直径约4MM，增强扫描未见强化。两肾下腺未见异常。腹腔干、腹主动脉旁未见明显肿大淋巴结。_x0004_左侧第4、5前肋局部骨皮质稍扭曲，未见明显异常软组织影，较前未见明显变化。</t>
   </si>
   <si>
     <t>肝脂肪浸润，甲状腺右叶结节伴钙化—性质待定，建议超声造影；两侧颈部见淋巴结肝肋上斜切120MM/（－），剑上纵切58MM/2指，肝区回声密集欠均，门脉主干内径10MM，脾肋间切30MM/（－）。左肾105MM×45MM×43MM，肾盂分离(-)，右肾100MM×43MM×42MM，肾盂分离(-)。两侧输尿管未见明显扩张。两侧肾下腺区未见明显肿块回声。CDFI示肝胆胰肾血流正常。甲状腺左叶41MM×15MM×13MM，甲状腺右叶42MM×14MM×13MM，内部见7MM×5MM混合回声团块，内见数枚强回声团块伴声影，较大约1.5MM，边界清，CDFI周边见短线状彩色血流，RI0.73。峡部3MM。甲状腺内部回声均匀，甲状腺内血流分布正常。颈部左侧甲状腺下动脉血流通畅，PSV0.23MM/s，RI0.56。颈部右侧甲状腺下动脉血流通畅，PSV0.22MM/s，RI0.55。两侧颌上、两侧颈血管旁见数枚低回声区，左侧最大18MM×7MM，右侧最大13MM×5MM，两侧锁骨下未见明显肿块回声。CDFI未见异常血流。</t>
@@ -4175,16 +4175,16 @@
     <t>左上肺,左上肺,左上肺</t>
   </si>
   <si>
-    <t>肺癌放化疗后：左肺门旁病灶较前稍缩小。左下肺、左上肺斑片影，与前片对比，较前缩小。左肺中叶小结节，较前变化不明显。左肺中叶多发新发淡薄斑片影，考虑炎症。右肺下叶少量纤维增殖灶，大致同前。左侧少量胸腔积液，较前吸收。两侧锁骨下窝、纵隔及左肺门淋巴结，较前变化不明显。肝S8钙化灶，较前变化不明显。右肾小囊肿同前。两颈II-V区小淋巴结。肺癌放化疗后复查，对比2016-06-27片：左肺门旁见少量软组织密度灶，边界欠清，病灶包绕左肺下叶支气管，范围难以准确测量，较前稍缩小；左肺下叶及左肺上叶见多发斑片灶，边界不清，部分病灶见空气支气管征，与前片对比，病灶较前稍缩小，增强扫描强化稍明显。左肺中叶见多发新发淡薄斑片影，边界模糊。左肺中叶见小结节灶，短径约3MM，较前变化不明显。右肺下叶见少许条索影及类结节灶，大致同前。两侧锁骨下窝、左下气管旁、左上气管旁及左肺门见多发淋巴结，部分相互融合，最大约18MM×16MM，较前变化不明显。左侧胸腔见少量积液，较前吸收；右侧胸腔未见积液，两侧胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S8近膈顶见片状致密，边界清。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见类圆形低密度灶，直径约5MM，边界清楚，未见强化。所示左肾及两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。两颈结构清晰，各血管充盈良好，甲状腺两叶及峡部形态正常，密度均匀，未见占位性病变；喉咽腔形态正常，两侧真假声带未见增厚，前联合未见增厚，梨状窝对称；两侧颌上腺、腮腺大小形态正常，密度均匀；两颈II-V区可见多个小淋巴结，短径约3-5MM，孤立散在，均匀强化。扫描范围未见明显骨质破坏征象。</t>
-  </si>
-  <si>
-    <t>右乳癌根治术后、右肺腺癌靶向治疗后复查，对比2017.01.24片：右乳癌术后改变，局部未见肿瘤复发征象。左乳多发良性钙化灶，较前相仿。右肺下叶斑片灶，范围较前缩小。左肺下叶前段、左侧斜裂斑片灶，考虑增殖灶可能性大，大致同前。右锁下小淋巴结，较前相仿。肝S7肝内胆管结石。肝S4小囊肿。骨质疏松。右乳癌根治术后、右肺腺癌靶向治疗后复查，对比2017.01.24片：右侧乳腺缺如，右前胸壁皮肤稍增厚同前，未见明确结节、肿物影。左乳大小、形态正常，内见散在点状钙化灶，较大直径约2MM，未见明确结节肿物影。两侧腋窝及两侧内乳区未见明确肿大淋巴结。右肺下叶舌段见一不规则软组织灶，大小约8MM×11MM（纵隔窗显示），边界不清，边缘见分叶及长短毛刺，牵拉邻近胸膜，密度欠均匀，未见坏死及钙化，增强后可见强化，较前稍缩小；病灶远端见少许条索及斑片状模糊影，范围较前相仿。右肺下叶下舌段支气管延伸入内，远端截断。左肺下叶前段、左侧斜裂见小斑片灶，较大者约5MM×4MM，边界尚清，大致同前。余两肺清晰，未见明确结节影。气管及支气管分枝通畅。右锁下小淋巴结大致同前；纵隔内及两肺门未见明确肿大淋巴结。两侧胸腔未见积液。胸膜未见增厚。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，肝S7见一点状致密灶，直径约2MM。肝S4见小囊性灶，较大直径约4MM，边界清晰，未见强化。肝内胆管、胆总管未见扩张，内未见结石。胆囊未见异常。肝门区及门静脉未见异常。脾大小形态未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾、两肾下腺未见异常。腹主动脉旁未见肿大淋巴结。扫描所见骨质呈骨质疏松改变，未见明确骨质破坏。</t>
+    <t>肺癌放化疗后：左肺门旁病灶较前稍缩小。_x0004_左下肺、左上肺斑片影，与前片对比，较前缩小。左肺中叶小结节，较前变化不明显。_x0004_左肺中叶多发新发淡薄斑片影，考虑炎症。_x0004_右肺下叶少量纤维增殖灶，大致同前。_x0004_左侧少量胸腔积液，较前吸收。_x0004_两侧锁骨下窝、纵隔及左肺门淋巴结，较前变化不明显。_x0004_肝S8钙化灶，较前变化不明显。_x0004_右肾小囊肿同前。两颈II-V区小淋巴结。肺癌放化疗后复查，对比2016-06-27片：_x0004_左肺门旁见少量软组织密度灶，边界欠清，病灶包绕左肺下叶支气管，范围难以准确测量，较前稍缩小；左肺下叶及左肺上叶见多发斑片灶，边界不清，部分病灶见空气支气管征，与前片对比，病灶较前稍缩小，增强扫描强化稍明显。左肺中叶见多发新发淡薄斑片影，边界模糊。左肺中叶见小结节灶，短径约3MM，较前变化不明显。右肺下叶见少许条索影及类结节灶，大致同前。两侧锁骨下窝、左下气管旁、左上气管旁及左肺门见多发淋巴结，部分相互融合，最大约18MM×16MM，较前变化不明显。_x0004_左侧胸腔见少量积液，较前吸收；右侧胸腔未见积液，两侧胸膜未见增厚。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S8近膈顶见片状致密，边界清。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见类圆形低密度灶，直径约5MM，边界清楚，未见强化。所示左肾及两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_两颈结构清晰，各血管充盈良好，甲状腺两叶及峡部形态正常，密度均匀，未见占位性病变；喉咽腔形态正常，两侧真假声带未见增厚，前联合未见增厚，梨状窝对称；两侧颌上腺、腮腺大小形态正常，密度均匀；两颈II-V区可见多个小淋巴结，短径约3-5MM，孤立散在，均匀强化。_x0004_扫描范围未见明显骨质破坏征象。_x0004_</t>
+  </si>
+  <si>
+    <t>右乳癌根治术后、右肺腺癌靶向治疗后复查，对比2017.01.24片：_x0004_右乳癌术后改变，局部未见肿瘤复发征象。_x0004_左乳多发良性钙化灶，较前相仿。_x0004_右肺下叶斑片灶，范围较前缩小。_x0004_左肺下叶前段、左侧斜裂斑片灶，考虑增殖灶可能性大，大致同前。_x0004_右锁下小淋巴结，较前相仿。_x0004_肝S7肝内胆管结石。肝S4小囊肿。_x0004_骨质疏松。右乳癌根治术后、右肺腺癌靶向治疗后复查，对比2017.01.24片：_x0004_右侧乳腺缺如，右前胸壁皮肤稍增厚同前，未见明确结节、肿物影。_x0004_左乳大小、形态正常，内见散在点状钙化灶，较大直径约2MM，未见明确结节肿物影。_x0004_两侧腋窝及两侧内乳区未见明确肿大淋巴结。_x0004_右肺下叶舌段见一不规则软组织灶，大小约8MM×11MM（纵隔窗显示），边界不清，边缘见分叶及长短毛刺，牵拉邻近胸膜，密度欠均匀，未见坏死及钙化，增强后可见强化，较前稍缩小；病灶远端见少许条索及斑片状模糊影，范围较前相仿。右肺下叶下舌段支气管延伸入内，远端截断。_x0004_左肺下叶前段、左侧斜裂见小斑片灶，较大者约5MM×4MM，边界尚清，大致同前。_x0004_余两肺清晰，未见明确结节影。气管及支气管分枝通畅。_x0004_右锁下小淋巴结大致同前；纵隔内及两肺门未见明确肿大淋巴结。两侧胸腔未见积液。胸膜未见增厚。_x0004_肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，肝S7见一点状致密灶，直径约2MM。肝S4见小囊性灶，较大直径约4MM，边界清晰，未见强化。_x0004_肝内胆管、胆总管未见扩张，内未见结石。胆囊未见异常。肝门区及门静脉未见异常。_x0004_脾大小形态未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。_x0004_两肾、两肾下腺未见异常。_x0004_腹主动脉旁未见肿大淋巴结。_x0004_扫描所见骨质呈骨质疏松改变，未见明确骨质破坏。</t>
   </si>
   <si>
     <t>8MM×11MM</t>
   </si>
   <si>
-    <t>右下肺叶切除术后改变，右残肺少许纤维增殖灶。左肺下叶后段新发小类结节影，考虑炎症可能，建议治疗后复查。右侧下胸腔包裹性积液，较前减少。肝S3、S5、S6小囊肿。两肾囊肿。甲状腺多发结节，考虑结节性甲状腺肿，较前相仿。右下肺叶切除术后复查，对比2016-09-19片：右下肺叶缺如，术区见条状金属影，未见异常软组织影，右下肺支气管及右下肺静脉截断。右残肺见少许条片影，边缘模糊，较前相仿。左肺野清晰，左肺下叶后段见一类结节，约9MM×6MM，边界稍模糊，可见强化，较前新增。气管及余支气管分枝通畅。两侧腋窝、肺门及纵隔未见肿大淋巴结。右前胸腔少量包裹性积液，较前减少。左侧胸腔未见积液。两侧胸膜未见明显增厚。肝脏形态、各叶比例未见明显异常，轮廓光整，肝S3、S5、S6见囊性低密度灶，界清，大者直径约6MM，未见强化。肝内外胆管无扩张，胆囊不大，胆总管未见扩张，未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾不大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾见多发囊性低密度灶，大者约17MM×22MM，界清，无强化。两侧肾下腺大小、形态未见异常，密度均匀。膈脚后、胃右、腹腔干、腹主动脉旁未见明显肿大淋巴结。甲状腺见多发稍低密度灶，界清，大者约11MM×10MM，密度不均，增强扫描轻中度强化，较前相仿。扫描所见骨质未见明确破坏征象。</t>
+    <t>右下肺叶切除术后改变，右残肺少许纤维增殖灶。_x0004_左肺下叶后段新发小类结节影，考虑炎症可能，建议治疗后复查。_x0004_右侧下胸腔包裹性积液，较前减少。_x0004_肝S3、S5、S6小囊肿。_x0004_两肾囊肿。_x0004_甲状腺多发结节，考虑结节性甲状腺肿，较前相仿。右下肺叶切除术后复查，对比2016-09-19片：_x0004_右下肺叶缺如，术区见条状金属影，未见异常软组织影，右下肺支气管及右下肺静脉截断。右残肺见少许条片影，边缘模糊，较前相仿。左肺野清晰，左肺下叶后段见一类结节，约9MM×6MM，边界稍模糊，可见强化，较前新增。_x0004_气管及余支气管分枝通畅。两侧腋窝、肺门及纵隔未见肿大淋巴结。_x0004_右前胸腔少量包裹性积液，较前减少。左侧胸腔未见积液。两侧胸膜未见明显增厚。_x0004_肝脏形态、各叶比例未见明显异常，轮廓光整，肝S3、S5、S6见囊性低密度灶，界清，大者直径约6MM，未见强化。肝内外胆管无扩张，胆囊不大，胆总管未见扩张，未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾不大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾见多发囊性低密度灶，大者约17MM×22MM，界清，无强化。两侧肾下腺大小、形态未见异常，密度均匀。_x0004_膈脚后、胃右、腹腔干、腹主动脉旁未见明显肿大淋巴结。_x0004_甲状腺见多发稍低密度灶，界清，大者约11MM×10MM，密度不均，增强扫描轻中度强化，较前相仿。_x0004_扫描所见骨质未见明确破坏征象。</t>
   </si>
   <si>
     <t>右下肺叶</t>
@@ -4211,7 +4211,7 @@
     <t>两上气管旁,隆突上及左肺门淋巴结</t>
   </si>
   <si>
-    <t>直肠癌术后肺转移、肝转移综合治疗后，对比2016-11-16片：左下肺病灶，较前增大；左中肺及上肺多发病灶，较前未见明显变化。右肺下叶前段小钙化灶，较前未见明显变化。肝S4、S7病灶，考虑消融术后改变，较前未见明显变化。肝S7结节，考虑血管瘤。肝S7肝内胆管结石。甲状腺左叶病变，较前未见明显变化。直肠癌术后改变，未见复发征象。直肠癌术后肺转移、肝转移综合治疗后，对比2016-11-16片：左肺下叶见一结节灶，大小约39MM×34MM，边界不清，分叶状，增强扫描不均匀轻度强化，病灶周围见多发条索灶，与邻近胸膜牵拉粘连，较前增大。左肺上叶前基底段见一结节，大小约20MM×16MM，边界不清，密度不均匀，增强扫描轻度强化，较前未见明显变化。左肺中叶胸膜上及上叶后基底段各见不规则病灶，大小约7MM×8MM、12MM×11MM，内见空洞影，边缘模糊，周围见条索灶，与邻近胸膜粘连，较前变化不大。右肺下叶前段见一小致密影，直径约3MM，较前未见明显变化。气管及支气管分支通畅。左下气管旁、两上气管旁及左肺门见数个淋巴结，大者短径约14MM，强化明显，其中左下气管旁淋巴结较前稍增大，余较前相仿。两侧胸腔未见积液，胸膜未见增厚。两侧乳腺术后缺失，两侧腋窝未见肿大淋巴结。甲状腺左叶体积增大，见一稍低密度结节，大小约16MM×13MM，边界清楚，增强扫描较明显强化，大致同前。肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝S4、S7各见一斑片状低密度病变，较大者大小约19MM×11MM，边界清晰，增强扫描未见强化，大致同前。肝S7下述病灶前缘见一结节，大小约13MM×9MM，边界清楚，增强扫描动脉期结节样强化，门脉期、延迟期仍明显强化。肝S7另见一颗粒状致密灶。肝内外胆管未见扩张，胆囊不大，内未见异常密度灶。肝门区、门静脉未见异常。脾、胰腺、两肾及两侧肾下腺未见异常。肝门区及腹膜后未见肿大淋巴结。直肠癌术后，吻合口区肠壁未见明显增厚，肠周间隙清晰。膀胱充盈良好，境界清楚。子宫、宫颈大小、形态未见异常，宫腔内见金属节育环。两侧附件区未见明确肿块。两侧腹股沟区及两侧髂血管旁未见肿大淋巴结。扫描范围内未见明确骨质破坏。</t>
+    <t>直肠癌术后肺转移、肝转移综合治疗后，对比2016-11-16片：_x0004_左下肺病灶，较前增大；左中肺及上肺多发病灶，较前未见明显变化。_x0004_右肺下叶前段小钙化灶，较前未见明显变化。_x0004_肝S4、S7病灶，考虑消融术后改变，较前未见明显变化。_x0004_肝S7结节，考虑血管瘤。_x0004_肝S7肝内胆管结石。_x0004_甲状腺左叶病变，较前未见明显变化。_x0004_直肠癌术后改变，未见复发征象。直肠癌术后肺转移、肝转移综合治疗后，对比2016-11-16片：_x0004_左肺下叶见一结节灶，大小约39MM×34MM，边界不清，分叶状，增强扫描不均匀轻度强化，病灶周围见多发条索灶，与邻近胸膜牵拉粘连，较前增大。左肺上叶前基底段见一结节，大小约20MM×16MM，边界不清，密度不均匀，增强扫描轻度强化，较前未见明显变化。左肺中叶胸膜上及上叶后基底段各见不规则病灶，大小约7MM×8MM、12MM×11MM，内见空洞影，边缘模糊，周围见条索灶，与邻近胸膜粘连，较前变化不大。右肺下叶前段见一小致密影，直径约3MM，较前未见明显变化。气管及支气管分支通畅。_x0004_左下气管旁、两上气管旁及左肺门见数个淋巴结，大者短径约14MM，强化明显，其中左下气管旁淋巴结较前稍增大，余较前相仿。两侧胸腔未见积液，胸膜未见增厚。两侧乳腺术后缺失，两侧腋窝未见肿大淋巴结。甲状腺左叶体积增大，见一稍低密度结节，大小约16MM×13MM，边界清楚，增强扫描较明显强化，大致同前。_x0004_肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝S4、S7各见一斑片状低密度病变，较大者大小约19MM×11MM，边界清晰，增强扫描未见强化，大致同前。肝S7下述病灶前缘见一结节，大小约13MM×9MM，边界清楚，增强扫描动脉期结节样强化，门脉期、延迟期仍明显强化。肝S7另见一颗粒状致密灶。肝内外胆管未见扩张，胆囊不大，内未见异常密度灶。肝门区、门静脉未见异常。脾、胰腺、两肾及两侧肾下腺未见异常。肝门区及腹膜后未见肿大淋巴结。_x0004_直肠癌术后，吻合口区肠壁未见明显增厚，肠周间隙清晰。膀胱充盈良好，境界清楚。_x0004_子宫、宫颈大小、形态未见异常，宫腔内见金属节育环。两侧附件区未见明确肿块。_x0004_两侧腹股沟区及两侧髂血管旁未见肿大淋巴结。_x0004_扫描范围内未见明确骨质破坏。</t>
   </si>
   <si>
     <t>左下肺癌多发转移化疗后复查：左肺下叶肿物，较前缩小。两肺散在小类结节影，较前稍缩小。左肺门及纵隔多发淋巴结，考虑转移，较前缩小。左侧胸膜散在小结节状增厚，不排除胸膜种植，较前相仿。多发骨病变，考虑转移瘤，骨质密度较前增高。甲状腺右叶病变、右侧食管气管旁沟结节，考虑胸骨后甲状腺并结节性甲状腺肿可能性大，大致同前。肝多发囊肿。左下肺癌多发转移化疗后，对比2016.12.25片：左肺下叶近肺门区见软组织肿块，边缘不规则，可见分叶及短毛刺，范围约26MM×19MM，密度欠均匀，增强扫描不均匀强化，范围较前缩小；包绕左肺下叶支气管及部分分支，管腔部分狭窄；邻近肺组织见斑片状、条片状高密度影，边界模糊，范围较前相仿。左下肺胸膜上及右下肺尖后段、右上肺外基底段见多个小类结节灶，周边多见小条索影，较前稍缩小。左侧下上气管旁、隆突上及左肺门见多发淋巴结，大者短径约9MM，增强扫描不均匀强化，较前缩小。两侧胸腔未见积液。左侧叶间胸膜及肋胸膜见散在小结节状增厚，增强后强化，较前相仿。甲状腺右侧叶明显增大，密度不均匀，部分突入纵隔，内可见多发低密度灶，大者大小约15MM×14MM，不均匀强化；右侧气管食管旁沟见一结节，大小约25MM×18MM，密度不均匀，增强后局部强化与甲状腺组织相仿，下缘与甲状腺右叶分界不清。肝内见多个低密度影，边界光滑，增强扫描各期未见强化，最大位于S6/7，大小约35MM×25MM。胸骨柄、胸9、11、12椎体及两侧多根肋骨骨质见多发骨质密度减低及增高影，边界不清。</t>
@@ -4226,13 +4226,13 @@
     <t>肝左叶巨块型HCC治疗后，病灶存活，肝左静脉及门脉左支局部受累，较17-06-12大致相仿；右内叶异常强化灶，较前相仿；肝脏及两肾囊肿。双肺多发小结节。肝左叶可见一团块状异常信号灶，范围约13.8CM×12.4CM×9CM，T1WI为低信号，其内见斑片状稍高信号，T2WI为略高信号，边界较清楚，动态增强早期见病灶明显异常强化，门脉期及延迟期呈相对低信号，内见未强化成分，后期可见环形包膜强化，肝左静脉及门脉左支远端局部显示不清；肝左叶见小类圆形长T1长T2信号灶，未见明显强化；右内叶可见数枚斑片、结节状异常信号灶，T1WI低信号、T2WI稍高信号，动脉期明显强化，门脉期轻度持续强化，脾脏未见明显增大，信号尚均匀；胰腺无异常，两侧肾脏见多发类圆形长T2无强化灶，较大一枚约2CM；肝门部及后腹膜见多发稍大淋巴结；腹腔内无积液。双肺见多发小结节。</t>
   </si>
   <si>
-    <t>两肺转移瘤，请结合临床对比原片。纵隔淋巴结显示。两侧胸膜限局性增厚。心包囊肿可能大，请结合临床。右侧第7肋骨转移可能大，请结合临床。右侧乳腺术后。扫描显示胸廓对称，两肺多发大小不等结节影、团片影，部分呈分叶状，较大团片位于左肺上叶，范围约为2.7CM×2.1CM，CT值约为39HU，增强扫描CT值约为85HU，边界模糊，可见小毛刺及胸膜凹陷征，两肺另见索条影。各级支气管通畅，无扩张与狭窄。两侧肺门不大，纵隔居中，纵隔内淋巴结显示。心脏大小正常。心包左侧见囊性低密度影，CT值为10Hu。两侧胸膜局部增厚，胸膜上可见多发小结节影。右侧第7肋骨骨质破坏，骨皮质不连续。右侧乳腺缺如。</t>
+    <t>两肺转移瘤，请结合临床对比原片。纵隔淋巴结显示。两侧胸膜限局性增厚。心包囊肿可能大，请结合临床。右侧第7肋骨转移可能大，请结合临床。右侧乳腺术后。扫描显示胸廓对称，两肺多发大小不等结节影、团片影，部分呈分叶状，较大团片位于左肺上叶，范围约为2.7CM×2.1CM，CT值约为39HU，增强扫描CT值约为85HU，边界模糊，可见小毛刺及胸膜凹陷征，两肺另见索条影。各级支气管通畅，无扩张与狭窄。两侧肺门不大，纵隔居中，纵隔内淋巴结显示。心脏大小正常。心包左侧见囊性低密度影，CT值为10Hu。两侧胸膜局部增厚,胸膜上可见多发小结节影。右侧第7肋骨骨质破坏，骨皮质不连续。右侧乳腺缺如。</t>
   </si>
   <si>
     <t>两肺,右侧第7肋骨</t>
   </si>
   <si>
-    <t>左下肺MT切除及右侧小脑转移灶伽玛刀治疗后病例，1.下纵隔气管前糖代谢增高的淋巴结，转移可能，请结合临床；右侧小脑软化灶；2.脂肪肝；右肾囊肿。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET/CT图像示右侧小脑见无明显糖代谢异常增高的低密度灶，直径约8.5MM；大脑镰见无明显糖代谢的小低密度灶，大小约5.6MM×3.8MM，考虑为良性病变；鞍区术后改变，未见糖代谢异常增高及占位；余脑皮质及两侧基底节、丘脑、左侧小脑未见糖代谢异常及占位；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。右下颌窦粘膜增厚，考虑为慢性炎症；两侧额窦、筛窦、蝶窦和左侧下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示左下肺MT术后，术区吻合口见金属吻合口影，糖代谢轻度增高，最大SUV值，未见明显占位，考虑为术后改变或炎性病变可能，左肺另见散在无糖代谢增高的条索影；下纵隔气管前间隙见糖代谢增高的淋巴结，大小约10.8MM×8.9MM，最大SUV值8.3；余纵隔及两侧肺门未见糖代谢异常增高的肿大淋巴结；两侧胸膜无增厚；两侧胸腔无积液；心脏无明显增大；两侧腋窝无糖代谢异常增高的肿大淋巴结；两侧乳腺无糖代谢异常增高及占位。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质密度减低，低于脾脏，未见异常占位；肝内外胆管无扩张；脾脏不大，密度均，未见异常占位；左肾见直径约10.8MM的低密度灶，胆囊、胰、右肾、两肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱壁光滑无增厚；子宫和两附件区未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示部分颈、胸、腰、骶椎体边缘及椎小关节骨质增生。</t>
+    <t>左下肺MT切除及右侧小脑转移灶伽玛刀治疗后病例，1.下纵隔气管前糖代谢增高的淋巴结，转移可能，请结合临床；右侧小脑软化灶；_x0004_2.脂肪肝；右肾囊肿。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET/CT图像示右侧小脑见无明显糖代谢异常增高的低密度灶，直径约8.5MM；大脑镰见无明显糖代谢的小低密度灶，大小约5.6MM×3.8MM，考虑为良性病变；鞍区术后改变，未见糖代谢异常增高及占位；余脑皮质及两侧基底节、丘脑、左侧小脑未见糖代谢异常及占位；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。右下颌窦粘膜增厚，考虑为慢性炎症；两侧额窦、筛窦、蝶窦和左侧下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示左下肺MT术后，术区吻合口见金属吻合口影，糖代谢轻度增高，最大SUV值，未见明显占位，考虑为术后改变或炎性病变可能，左肺另见散在无糖代谢增高的条索影；下纵隔气管前间隙见糖代谢增高的淋巴结，大小约10.8MM×8.9MM，最大SUV值8.3；余纵隔及两侧肺门未见糖代谢异常增高的肿大淋巴结；两侧胸膜无增厚；两侧胸腔无积液；心脏无明显增大；两侧腋窝无糖代谢异常增高的肿大淋巴结；两侧乳腺无糖代谢异常增高及占位。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质密度减低，低于脾脏，未见异常占位；肝内外胆管无扩张；脾脏不大，密度均，未见异常占位；左肾见直径约10.8MM的低密度灶，胆囊、胰、右肾、两肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱壁光滑无增厚；子宫和两附件区未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示部分颈、胸、腰、骶椎体边缘及椎小关节骨质增生。</t>
   </si>
   <si>
     <t>右侧小脑,下纵隔气管前糖代谢增高的淋巴结</t>
@@ -4241,7 +4241,7 @@
     <t>左肺癌切除术后：左肺术后改变，左中上肺少许索条及斑片灶，大致同前，考虑纤维增殖性病灶。两肺局限性肺气肿。左侧少量胸腔积液，大致同前。肝脏未见明确病变。两肾多发囊肿。左肺癌切除术后复查：左肺下叶缺如，残肺膨胀良好，左侧斜裂胸膜稍增厚，左中肺及左上肺见不规则条片影，边界欠清。右肺下叶、两肺上叶胸膜上见局限性类圆形透亮度增加区，大致同前，两肺未见明显结节影。气管、左中、上叶及右肺各叶支气管分枝通畅。两侧肺门及纵隔未见明确肿大淋巴结。左侧胸膜轻度增厚，左侧胸腔见少量积液，较前变化不大。右侧胸腔未见积液，右侧胸膜未见增厚。肝脏大小正常，各叶比例在正常范围以内，外形轮廓光整，密度均匀。肝内胆管未见扩张。胆囊大小正常，其内未见结石影。胆总管未见扩张，其内未见结石头影。肝门区未见异常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态及密度未见异常。两肾见数个囊性灶，最大者大小约11MM×9MM，边界清晰，密度均匀，未见强化。两肾动脉壁见散在钙化斑。两侧肾下腺所见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围未见明显骨质破坏。</t>
   </si>
   <si>
-    <t>右肺癌化疗后，与2016-05-30片对比：右上肺门区肿物及其后方数个小结节，较前稍缩小。右肺下叶舌段条索状密度增高影，考虑纤维灶，较前变化不大。两锁下、纵隔及两肺门多发淋巴结，较前无明显变化。右侧胸膜多发转移瘤，较前无明显变化；右侧胸腔少量积液。肝囊肿。肝S5肝内胆管结石。右肺癌化疗后，与2016-05-30片对比：右上肺门区见一团块状肿物，大小约42MM×33MM，密度不均匀，增强扫描见不均匀强化，病变内缘紧贴纵隔胸膜，包绕右上肺基底段支气管开口段，管腔稍狭窄，较前稍缩小。病灶后方肺内见数个小结节，大者大小约6MM×5MM，边界清楚，较前稍缩小。右肺下叶舌段见条索状密度增高影，边界模糊。左肺内未见明确病灶。两锁骨下窝、左下气管旁、血管前间隙、两上气管旁、主-肺动脉窗、主动脉旁、隆突上及两肺门见多个肿大淋巴结，最大者约9MM×14MM，较前无明显变化。两侧肺动脉内未见充盈缺损。右侧胸膜广泛增厚，散在大量结节、团块状病灶，最大者约24MM×52MM，增强扫描强化明显，较前未见明显变化。右侧胸腔见少量积液，较前相仿。左侧胸腔未见积液；左侧胸膜无增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀。肝S3、4、5、6、8见数个圆形低密度灶，最大约12MM×12MM，边界清楚，增强扫描未见强化，较前相仿。肝S5见斑点致密灶，直径约6MM。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾及两肾下腺未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。扫描所见骨质未见明确破坏征象。</t>
+    <t>右肺癌化疗后，与2016-05-30片对比：_x0004_右上肺门区肿物及其后方数个小结节，较前稍缩小。_x0004_右肺下叶舌段条索状密度增高影，考虑纤维灶，较前变化不大。_x0004_两锁下、纵隔及两肺门多发淋巴结，较前无明显变化。_x0004_右侧胸膜多发转移瘤，较前无明显变化；右侧胸腔少量积液。_x0004_肝囊肿。_x0004_肝S5肝内胆管结石。右肺癌化疗后，与2016-05-30片对比：_x0004_右上肺门区见一团块状肿物，大小约42MM×33MM，密度不均匀，增强扫描见不均匀强化，病变内缘紧贴纵隔胸膜，包绕右上肺基底段支气管开口段，管腔稍狭窄，较前稍缩小。病灶后方肺内见数个小结节，大者大小约6MM×5MM，边界清楚，较前稍缩小。_x0004_右肺下叶舌段见条索状密度增高影，边界模糊。左肺内未见明确病灶。_x0004_两锁骨下窝、左下气管旁、血管前间隙、两上气管旁、主-肺动脉窗、主动脉旁、隆突上及两肺门见多个肿大淋巴结，最大者约9MM×14MM，较前无明显变化。_x0004_两侧肺动脉内未见充盈缺损。_x0004_右侧胸膜广泛增厚，散在大量结节、团块状病灶，最大者约24MM×52MM，增强扫描强化明显，较前未见明显变化。右侧胸腔见少量积液，较前相仿。左侧胸腔未见积液；左侧胸膜无增厚。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀。肝S3、4、5、6、8见数个圆形低密度灶，最大约12MM×12MM，边界清楚，增强扫描未见强化，较前相仿。肝S5见斑点致密灶，直径约6MM。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉未见异常。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾及两肾下腺未见异常。_x0004_膈脚后、腹主动脉旁未见肿大淋巴结。_x0004_扫描所见骨质未见明确破坏征象。</t>
   </si>
   <si>
     <t>42MM×33MM</t>
@@ -4256,7 +4256,7 @@
     <t>胸7、8、12,腰2,左侧第3后肋,右侧第8后肋,脑</t>
   </si>
   <si>
-    <t>肝囊肿。左肾多发囊肿。前列腺钙化。胆囊、脾脏、胰腺、右肾、膀胱未见明显占位病变声像。两侧输尿管未见明确扩张。腹主动脉旁未见明确占位病变。肝脏大小、形态正常，包膜光滑，实质回声欠均匀，肝S5可见一无回声灶，大小约13MM×12MM，类圆形，边界清，内透声可，后方回声增强。血管走行清晰、自然，肝内胆管不扩张，门静脉内径约11MM，肝内未见明显肿物回声。CDFI：肝动脉、门静脉血流通畅，为向肝血流信号，充盈良好，肝内未见明确异常血流信号。门静脉最大血流速度约18CM/s。胆囊大小形态正常，囊壁不厚，胆囊内未见明显异常回声。脾脏大小形态正常，包膜光滑，实质回声均匀，未见明显异常回声。胰腺大小形态正常，实质回声均匀，未见明显异常回声。两肾大小形态正常，实质回声欠均匀，左肾可见2个无回声灶，大小分别约16MM×14MM、29MM×23MM，类圆形，边界清，内透声可，后方回声增强。CDFI：两肾血流呈珊瑚状，未见明确异常血流信号。两侧输尿管未见明确扩张。膀胱充盈良好，膀胱壁光滑，不厚，膀胱腔内未见明确肿物回声。前列腺大小形态正常，大小约44MM×21MM×37MM，包膜光滑，实质回声欠均匀，内可见强回声斑，边界清，后方伴声影。腹主动脉旁未见明确肿物回声。</t>
+    <t>肝囊肿。_x0004__x0004_左肾多发囊肿。_x0004__x0004_前列腺钙化。_x0004__x0004_胆囊、脾脏、胰腺、右肾、膀胱未见明显占位病变声像。_x0004__x0004_两侧输尿管未见明确扩张。_x0004__x0004_腹主动脉旁未见明确占位病变。_x0004__x0004_肝脏大小、形态正常，包膜光滑，实质回声欠均匀，肝S5可见一无回声灶，大小约13MM×12MM，类圆形，边界清，内透声可，后方回声增强。血管走行清晰、自然，肝内胆管不扩张，门静脉内径约11MM，肝内未见明显肿物回声。_x0004__x0004_CDFI：肝动脉、门静脉血流通畅，为向肝血流信号，充盈良好，肝内未见明确异常血流信号。门静脉最大血流速度约18CM/s。_x0004__x0004_胆囊大小形态正常，囊壁不厚，胆囊内未见明显异常回声。_x0004__x0004_脾脏大小形态正常，包膜光滑，实质回声均匀，未见明显异常回声。_x0004__x0004_胰腺大小形态正常，实质回声均匀，未见明显异常回声。_x0004__x0004_两肾大小形态正常，实质回声欠均匀，左肾可见2个无回声灶，大小分别约16MM×14MM、29MM×23MM，类圆形，边界清，内透声可，后方回声增强。_x0004__x0004_CDFI：两肾血流呈珊瑚状，未见明确异常血流信号。_x0004__x0004_两侧输尿管未见明确扩张。_x0004__x0004_膀胱充盈良好，膀胱壁光滑，不厚，膀胱腔内未见明确肿物回声。_x0004__x0004_前列腺大小形态正常，大小约44MM×21MM×37MM，包膜光滑，实质回声欠均匀，内可见强回声斑，边界清，后方伴声影。_x0004__x0004_腹主动脉旁未见明确肿物回声。_x0004__x0004_</t>
   </si>
   <si>
     <t>右乳低回声团块伴钙化—考虑MT可能；两侧腋窝见淋巴结；甲状腺弥漫性病变—考虑桥本氏甲状腺炎，甲状腺两侧叶无回声区—考虑增生结节可能左侧乳腺腺体结构尚正常，未见明显肿块回声。CDFI未见异常彩色血流。右侧乳腺7点钟见24MM×17MM低回声团块，形态不规则，内见数枚强回声，最大2MM，CDFI见线状彩色血流，周边为主，RI0.65。两侧腋窝见数枚高回声区，左侧最大14MM×5MM，右侧最大12MM×6MM。CDFI示血流分布尚正常。甲状腺左叶48MM×14MM×15MM，甲状腺右叶47MM×14MM×16MM，峡部2MM。两侧叶见多枚无回声区，左叶最大13MM×7MM，右叶最大8MM×6MM，部分内见点状强回声，CDFI见点状彩色血流。甲状腺内部回声增粗不均匀，甲状腺内血流分布正常。颈部左侧甲状腺下动脉血流通畅，PSV0.29MM/s，RI0.54。颈部右侧甲状腺下动脉血流通畅，PSV0.33MM/s，RI0.55。</t>
@@ -4268,10 +4268,10 @@
     <t>24MM×17MM</t>
   </si>
   <si>
-    <t>心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号心功能正常心超声检测值：LA   23MM       AO     26MM        MV E 0.70MM/s     EF 72%LV   44MM       IVS     7MM           A 0.49MM/s     FS 42% RA   28MM       LVPW    6MMRV   15MM       PA     18MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图未见异常。</t>
-  </si>
-  <si>
-    <t>右房增大(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，33，20-37MM，右房内径，43，19-40MM，右室舒张末内径，51，35-56MM，右室收缩末内径，33，23-35MM，室间隔厚度，10，6-11MM，右室后壁厚度，9，6-11MM，肺动脉收缩压，35，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，64，%，二尖瓣血流图：，E、A两峰，，E/A，&amp;lt；，1；DT：，197，ms，DTI示S波峰值：，10.8，cm/s；E/A，&amp;lt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，增大，，右室内径，正常，，右室壁厚度，正常，，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，，开放不受限，彩色多普勒，示轻微，二尖瓣反流。，3、主动脉窦部，不增宽，，升主动脉，不增宽，，主动脉瓣，不增厚，，，开放不受限，，彩色多普勒，未测及，主动脉瓣反流。，4、左房内径，正常，，左室内径，正常，，左室收缩活动未见异常。肺动脉，不增宽，，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
+    <t>心脏结构及运动未见异常_x0004__x0004_各房室腔及大血管未探及异常血流信号_x0004__x0004_心功能正常心超声检测值：_x0004__x0004_LA   23MMAO     26MMV E 0.70m/s     EF 72%_x0004__x0004_LV   44MMIVS     7MMA 0.49m/s     FS 42% _x0004__x0004_RA   28MMLVPW    6MM_x0004__x0004_RV   15MMPA     18MM_x0004__x0004__x0004__x0004_二维及Ｍ型超声心动图特征：_x0004__x0004_升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；_x0004__x0004_各房室腔径正常。_x0004__x0004_室壁厚度及运动正常。房、室间隔连续性完好。_x0004__x0004_各组瓣膜形态、结构及运动正常。_x0004__x0004_心包及心包腔未见异常。_x0004__x0004_彩色及频谱多普勒超声心动图未见异常。</t>
+  </si>
+  <si>
+    <t>右房增大(心脏彩色多普勒超声+右心功能测定+TDI),常规检查切面观,：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、M型及血流多普勒超声测量：,名称,测量值,正常值,主动脉根部内径,33,20-37MM,右房内径,43,19-40MM,右室舒张末内径,51,35-56MM,右室收缩末内径,33,23-35MM,室间隔厚度,10,6-11MM,右室后壁厚度,9,6-11MM,肺动脉收缩压,35,&amp;lt;40MMHg,医学图像序列2行2列,宽：110,二、右心功能测定及组织多普勒显像测量:,右室射血分数（LVEF）：,64,%,二尖瓣血流图：,E、A两峰,，E/A,&amp;lt;,1；DT：,197,ms,DTI示S波峰值：,10.8,cm/s；E/A,&amp;lt;,1,三、普通二维超声心动图和各心腔及大血管血流显像：,1、右房内径,增大,，右室内径,正常,，右室壁厚度,正常,，静息状态上右室各节段收缩活动未见异常。,2、二尖瓣,不增厚,，开放不受限，彩色多普勒,示轻微,二尖瓣反流。,3、主动脉窦部,不增宽,，升主动脉,不增宽,，主动脉瓣,不增厚,，,开放不受限,，彩色多普勒,未测及,主动脉瓣反流。,4、左房内径,正常,，左室内径,正常,，左室收缩活动未见异常。肺动脉,不增宽,，三尖瓣不增厚，开放不受限，彩色多普勒,示轻微,三尖瓣反流。,5、心包腔内,未见明显积液,。,四、结论：,</t>
   </si>
   <si>
     <t>肺癌化疗后，与2015-02-03日CT对比：右肺下叶尖后段病灶，较前变化不明显。左肺尖及两肺上叶纤维增殖钙化灶。左肺上叶磨玻璃灶较前变化不明显。纵隔淋巴结，较前变化不明显。右上胸膜增厚，较前变化不明显。甲状腺右叶病变，考虑结节性甲状腺肿可能。右侧肾下腺结合部增粗并钙化，考虑良性病变可能性大。两肾盂小结石。肺癌化疗后：右肺下叶尖后段见一类结节灶，大小约10MM×6MM，边界不清，呈分叶状，边缘见毛刺，密度欠均匀，增强扫描轻度强化，病灶侵犯右侧斜裂胸膜，远端右肺下叶尖后段及舌段见条片状致密影，边界欠清，密度欠均匀，增强扫描强化明显。左肺尖及两肺上叶见散在条索灶，边界尚清，其中左肺尖病灶内夹杂颗粒状钙化灶。左肺上叶前基底段见一类圆形磨玻璃状灶，边界模糊，直径约8MM。气管及支气管分支通畅。主肺动脉窗、左下气管旁、左上气管旁、隆突上见小淋巴结，短径约5~8MM，界清，轻度强化。两侧胸腔未见积液。右上胸膜局限性不均匀稍增厚，增强扫描稍强化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，未见明显异常密度灶，增强扫描未见异常强化影。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区、门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾盂见数个致密灶。右侧肾下腺结合部增粗，内见钙化灶；左肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。所示甲状腺右叶内见一类圆形低密度灶，直径约5MM，界清，轻度强化。扫描范围内骨质未见明确骨质破坏征象。</t>
@@ -4298,7 +4298,7 @@
     <t>右乳,右乳</t>
   </si>
   <si>
-    <t>左肺癌治疗后，左肺下叶前段病变，较前变化不明显；左肺门软组织灶较前相仿。左肺及右上肺多发散在片状、斑片状病变，考虑炎症，较前变化不明显。两肺多发肺大泡，两肺散在纤维增殖灶。左肺门、纵隔淋巴结大致同前。肝多发囊肿。两肾囊肿。增强动脉期肝S6斑片状明显强化灶，考虑异常灌注可能性大，血管瘤待排。腹主动脉旁多发淋巴结，部分轻度肿大，较前稍增大，考虑转移。T10椎体右后缘稍致密，较前相仿。盆腔未见明显异常。左肺癌治疗后，与2017.05.19片对比：左肺下叶前段见一不规则形密度增高影，密度不均匀，边界欠清，范围约25MM×25MM(肺窗显示)，与左侧水平裂胸膜关系密切，增强扫描不均匀强化，较前变化不明显。左肺门见片状软组织密度灶包绕，边界不清，部分与左肺下叶前段病变相连，范围无法准确测量，增强扫描不均匀轻度强化，较前相仿。左肺及右上肺另见多发散在片状、斑片状密度增高影，边界模糊，较前变化不明显。两肺见多发大小不等薄壁无肺纹理区及散在条索灶，以左肺下叶为著，较前相仿。两上气管旁、主肺动脉窗、隆突上、左肺门可见多个淋巴结，部分融合，大者位于左肺门，短径约11MM，边界不清楚，密度欠均匀，增强扫描不均匀轻度强化，较前相仿。两侧锁骨下窝小淋巴结，大者短径约6MM，较前相仿。两侧胸腔未见积液。左侧胸膜增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，平扫肝实质内不均匀减低，低于正常脾脏密度；肝S1、2、3、4、5、6见多个类圆形低密度灶，界清，最大者约26MM×20MM，增强扫描未见强化，大致同前；动脉期肝S6见斑片状明显强化灶，门脉期及平衡期呈稍高密度改变。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾见多个类圆形低密度灶，界清，大者约21MM×20MM，增强扫描未见强化。两肾下腺未见明显异常。腹主动脉旁见多发淋巴结，较大者短径约13MM，增强扫描可见强化，部分较前稍增大。膀胱充盈良好，境界清楚。两侧精囊大小、形态未见异常，密度均匀，膀胱精囊角存在。前列腺大小、形态未见异常，密度均匀。直肠未见明显异常。两侧髂血管旁、腹股沟未见肿大淋巴结。T10椎体右后缘见片状稍高密度灶，边界欠清晰，较前相仿，余扫描范围未见明显骨质破坏。</t>
+    <t>左肺癌治疗后，左肺下叶前段病变，较前变化不明显；左肺门软组织灶较前相仿。_x0004_左肺及右上肺多发散在片状、斑片状病变，考虑炎症，较前变化不明显。_x0004_两肺多发肺大泡，两肺散在纤维增殖灶。_x0004_左肺门、纵隔淋巴结大致同前。_x0004_肝多发囊肿。两肾囊肿。_x0004_增强动脉期肝S6斑片状明显强化灶，考虑异常灌注可能性大，血管瘤待排。_x0004_腹主动脉旁多发淋巴结，部分轻度肿大，较前稍增大，考虑转移。_x0004_T10椎体右后缘稍致密，较前相仿。_x0004_盆腔未见明显异常。左肺癌治疗后，与2017.05.19片对比：_x0004_左肺下叶前段见一不规则形密度增高影，密度不均匀，边界欠清，范围约25MM×25MM(肺窗显示)，与左侧水平裂胸膜关系密切，增强扫描不均匀强化，较前变化不明显。左肺门见片状软组织密度灶包绕，边界不清，部分与左肺下叶前段病变相连，范围无法准确测量，增强扫描不均匀轻度强化，较前相仿。左肺及右上肺另见多发散在片状、斑片状密度增高影，边界模糊，较前变化不明显。两肺见多发大小不等薄壁无肺纹理区及散在条索灶，以左肺下叶为著，较前相仿。_x0004_两上气管旁、主肺动脉窗、隆突上、左肺门可见多个淋巴结，部分融合，大者位于左肺门，短径约11MM，边界不清楚，密度欠均匀，增强扫描不均匀轻度强化，较前相仿。两侧锁骨下窝小淋巴结，大者短径约6MM，较前相仿。两侧胸腔未见积液。左侧胸膜增厚、粘连。_x0004_肝脏形态正常，各叶比例在正常范围以内，平扫肝实质内不均匀减低，低于正常脾脏密度；肝S1、2、3、4、5、6见多个类圆形低密度灶，界清，最大者约26MM×20MM，增强扫描未见强化，大致同前；动脉期肝S6见斑片状明显强化灶，门脉期及平衡期呈稍高密度改变。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾见多个类圆形低密度灶，界清，大者约21MM×20MM，增强扫描未见强化。两肾下腺未见明显异常。腹主动脉旁见多发淋巴结，较大者短径约13MM，增强扫描可见强化，部分较前稍增大。_x0004_膀胱充盈良好，境界清楚。两侧精囊大小、形态未见异常，密度均匀，膀胱精囊角存在。前列腺大小、形态未见异常，密度均匀。直肠未见明显异常。两侧髂血管旁、腹股沟未见肿大淋巴结。_x0004_T10椎体右后缘见片状稍高密度灶，边界欠清晰，较前相仿，余扫描范围未见明显骨质破坏。</t>
   </si>
   <si>
     <t>腹主动脉旁多发淋巴结</t>
@@ -4307,10 +4307,10 @@
     <t>None与2014-10-10胸部CT对比：1、左肺下叶切除术后，支气管断端未见异常增厚及异常强化灶。左肺上叶索条影较前稍增厚，追查。右肺内未见明显新增结节。2、左肺门淋巴结较前增多、增大，较大原约12MM×10MM（IM31），现约26MM×13MM（IM32）；纵隔多组见多发肿大淋巴结，较大约24MM×18MM（IM12），部分与气管或食管分界不清。考虑转移。3、左侧后胸膜局限性增厚，呈肿块状，约35MM×17MM（IM34）；左侧少量胸水；考虑胸膜转移。右侧局限性胸膜肥厚粘连，未见胸水征。4、左后肋术后改变，左侧第8后肋局部密度稍高，追查。余扫及诸骨未见骨质破坏灶。</t>
   </si>
   <si>
-    <t>右上肺癌术后、化疗后复查：术区未见明显肿瘤复发征象；左肺中叶和上叶少许纤维灶，较前变化不明显；多发肝囊肿，较前相仿；右肾上极结节，考虑血管平滑肌脂肪瘤可能性大，较前无明显变化；左肾囊肿；右侧肾下腺小结节，较前未见明显变化。右上肺癌术后、化疗后复查，与2014-1-9日片对比：右上肺缺如，残肺含气良好，右肺野见散在少许条索影，边清。左肺中叶和左上肺后基底段可见斑片状影，边缘欠清，较前无明显变化。气管及左肺、右下肺支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。右侧胸膜增厚，左侧胸膜无增厚、粘连。右侧胸壁骨呈术后改变。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。肝内见散在几个小圆形低密度灶，直径约3MM~6MM，边界清楚，增强扫描未见强化，较前未见明显变化。肝内外胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影。肝门区正常。肝静脉、门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾上极见一稍低密度影，大小9MM×10MM，边界尚清，其内可见小片状极低密度影，增强扫描不均匀强化，较前无明显变化。左肾实质内见散在多个类圆形低密度灶，最大者约27MM×29MM，边界清楚，增强扫描未见强化。右侧肾下腺见一结节，大小7MM×11MM，密度欠均匀，增强轻度强化，较前未见明显变化；左侧肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围内骨质未见骨质破坏征象。</t>
-  </si>
-  <si>
-    <t>右上肺癌术后5年复查，与2015-10-19对比：左肺中叶及上叶病灶，考虑炎症可能大，较前增多。右下肺叶前段、左肺散在类结节，考虑增殖灶可能性大。左肺上叶病灶较前增多，余较前变化不大，建议随诊。左肺门淋巴结较前稍增大，考虑反应性淋巴结可能大。右侧胸膜增厚，大致同前。肝多发囊肿。右肾囊肿。右上肺癌术后5年复查，与2015-10-19对比：右上肺叶术后缺如，右侧胸廓稍缩小，右残肺充气良好，左肺中叶及上叶纹理增粗、紊乱，见多发斑片及条片灶，边界欠清，较前增多。右肺见散在斑片、条索状灶，边界不清，局部肺纹理增多紊乱，较前变化不大。右下肺叶前段、左肺见散在类结节灶，直径约2~3MM，边界欠清，轮廓欠光整，左上肺病变较前增多，余较前未见明显变化。气管、所示支气管及其分枝通畅。左肺门见淋巴结，大者短径约10MM，均匀强化，较前稍增大；纵隔、右肺门未见明显肿大淋巴结。右侧胸稍增厚，内可见钙化灶及多个类圆形结节影，边界清，增强后强化，大者短径约4MM。左侧胸腔未见积液，左侧胸膜未见明显增厚。肝脏形态、大小正常，各叶比例在正常范围内，外形轮廓光整，密度不均匀，肝内见多个类圆形低密度灶，最大者约为24MM×22MM，边界清楚，增强扫描未见明显强化。肝内外胆管未见扩张。胆囊大小正常，壁光滑，未见异常密度灶。脾脏大小正常，密度均匀。胰腺大小、形态、密度未见异常。右肾见多个类圆形囊性灶，最大者约为6MM×3MM，边界清，增强扫描未见强化。左肾及两侧肾下腺未见异常。腹膜后未见明显肿大淋巴结。腰3椎体下缘见低密度区，边界清晰，与下方椎间盘关系密切。余扫描层面内未见明显骨质破坏。</t>
+    <t>右上肺癌术后、化疗后复查：_x0004_术区未见明显肿瘤复发征象；_x0004_左肺中叶和上叶少许纤维灶，较前变化不明显；_x0004_多发肝囊肿，较前相仿；_x0004_右肾上极结节，考虑血管平滑肌脂肪瘤可能性大，较前无明显变化；_x0004_左肾囊肿；_x0004_右侧肾下腺小结节，较前未见明显变化。右上肺癌术后、化疗后复查，与2014-1-9日片对比：_x0004_右上肺缺如，残肺含气良好，右肺野见散在少许条索影，边清。左肺中叶和左上肺后基底段可见斑片状影，边缘欠清，较前无明显变化。_x0004_气管及左肺、右下肺支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。_x0004_两侧胸腔未见积液。右侧胸膜增厚，左侧胸膜无增厚、粘连。_x0004_右侧胸壁骨呈术后改变。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。肝内见散在几个小圆形低密度灶，直径约3MM~6MM，边界清楚，增强扫描未见强化，较前未见明显变化。_x0004_肝内外胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影。_x0004_肝门区正常。肝静脉、门静脉未见异常。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。_x0004_右肾上极见一稍低密度影，大小9MM×10MM，边界尚清，其内可见小片状极低密度影，增强扫描不均匀强化，较前无明显变化。左肾实质内见散在多个类圆形低密度灶，最大者约27MM×29MM，边界清楚，增强扫描未见强化。_x0004_右侧肾下腺见一结节，大小7MM×11MM，密度欠均匀，增强轻度强化，较前未见明显变化；左侧肾下腺未见异常。_x0004_膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_扫描范围内骨质未见骨质破坏征象。</t>
+  </si>
+  <si>
+    <t>右上肺癌术后5年复查，与2015-10-19对比：_x0004_左肺中叶及上叶病灶，考虑炎症可能大，较前增多。_x0004_右下肺叶前段、左肺散在类结节，考虑增殖灶可能性大。_x0004_左肺上叶病灶较前增多，余较前变化不大，建议随诊。_x0004_左肺门淋巴结较前稍增大，考虑反应性淋巴结可能大。_x0004_右侧胸膜增厚，大致同前。_x0004_肝多发囊肿。_x0004_右肾囊肿。右上肺癌术后5年复查，与2015-10-19对比：_x0004_右上肺叶术后缺如，右侧胸廓稍缩小，右残肺充气良好，左肺中叶及上叶纹理增粗、紊乱，见多发斑片及条片灶，边界欠清，较前增多。_x0004_右肺见散在斑片、条索状灶，边界不清，局部肺纹理增多紊乱，较前变化不大。_x0004_右下肺叶前段、左肺见散在类结节灶，直径约2~3MM，边界欠清，轮廓欠光整，左上肺病变较前增多，余较前未见明显变化。_x0004_气管、所示支气管及其分枝通畅。_x0004_左肺门见淋巴结，大者短径约10MM，均匀强化，较前稍增大；纵隔、右肺门未见明显肿大淋巴结。_x0004_右侧胸稍增厚，内可见钙化灶及多个类圆形结节影，边界清，增强后强化，大者短径约4MM。左侧胸腔未见积液，左侧胸膜未见明显增厚。_x0004_肝脏形态、大小正常，各叶比例在正常范围内，外形轮廓光整，密度不均匀，肝内见多个类圆形低密度灶，最大者约为24MM×22MM，边界清楚，增强扫描未见明显强化。肝内外胆管未见扩张。胆囊大小正常，壁光滑，未见异常密度灶。脾脏大小正常，密度均匀。胰腺大小、形态、密度未见异常。_x0004_右肾见多个类圆形囊性灶，最大者约为6MM×3MM，边界清，增强扫描未见强化。左肾及两侧肾下腺未见异常。腹膜后未见明显肿大淋巴结。_x0004_腰3椎体下缘见低密度区，边界清晰，与下方椎间盘关系密切。余扫描层面内未见明显骨质破坏。</t>
   </si>
   <si>
     <t>右上肺癌术后，与2015-12-28日片对比：右上胸膜增厚。左肺下叶、上叶斑点影，考虑增殖灶可能性大，较前未见明显变化。纵膈及右侧锁骨下淋巴结转移，较前相似。右侧胸腔少量积液，较前无明显变化。肝S2小囊肿。胆囊小结石。右肾小囊肿。右上肺癌术后，与2015-12-28日片对比：右肺下叶术后缺失，右肺上叶见少许纤维条索，边界清晰，未见明确结节影；左下肺及上肺见小斑点状影，边界欠清，直径约2MM；气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。右侧锁骨下、血管前、上气管旁见多个淋巴结，最大者短径约12MM；右侧胸腔见少量积液，较前无明显变化。左侧胸腔未见积液。右上胸膜增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S2见一小囊性灶，直径约为3MM，边界清楚，增强后未见强化，余肝实质密度均匀；肝内胆管正常，其内未见结石影，胆囊大小正常，其内见小结石影，胆总管未见扩张，其内未见结石影；肝门区正常；门静脉所见正常；脾大小正常，密度均匀；胰腺大小、形态正常，密度均匀；右肾见一囊性灶，大小约7MM×4MM，边界清晰，增强扫描未见强化，左肾所见正常；两肾下腺所见正常；膈脚后、腹主动脉旁未见肿大淋巴结。扫描层面中胸椎、腰椎、肋骨未见明确骨质破坏征象。</t>
@@ -4319,10 +4319,10 @@
     <t>纵膈,右侧锁骨下淋巴结</t>
   </si>
   <si>
-    <t>SPECT/CT显像结合全身骨平面显像：右侧髂骨不伴显像剂浓聚的高密度灶，考虑为良性病变可能，请短期随访；所示胸腰椎及两侧骶髂关节退行性变。显像方法：&lt;?xml：namespaceprefix=ons="urn：schemas-microsoft-com：office：office"/&gt;静脉注射99MMTc-MDP约3小时后，患者取仰卧位，ANT、POST位采集全身骨骼平面影像。全身骨骼平面显像完毕后，患者取仰卧位，SPECT/CT采集中上段胸肋至骶髂关节断层影像，经计算机处理得到横断面、矢状面、冠状面影像。影像所见：全身骨骼显影清晰，显像剂分布不均匀对称，胸椎及左侧骶髂部显像剂略浓聚；余处骨骼未见明显显像剂异常分布。　　SPECT/CT融合图像示：所示中上段胸椎及腰椎顺列，生理曲度存在，部分椎体边缘及椎小关节骨质增生，伴显像剂略浓聚；所示两侧肋骨在位，走行正常；两侧骶髂关节在位，组成骨缘骨质增生，伴显像剂略浓聚，左侧略显著；右侧髂骨见高密度灶，不伴显像剂异常浓聚；余所示骨骼未见明显骨质吸收破坏征象或显像剂异常分布。</t>
-  </si>
-  <si>
-    <t>右肺癌化疗后，对比2016-10-19CT：右肺上叶背段肺门旁少许软组织灶，较前稍大；右肺上叶胸膜上病变，较前相仿。纵隔及右肺门淋巴结转移，隆突上及右肺门淋巴结较前增大。两肺肺气肿，少许纤维增殖灶，大致同前。右肺上叶外基底段少许斑片灶，考虑炎症，较前减少。肝多发小囊肿大致同前；两肾小囊肿，同前。右肺癌化疗后：右肺上叶背段肺门旁见斑片状软组织灶，边界不清，形态不规则，与肿大淋巴结分界不清，大小难以准确测量，增强扫描较明显强化；病变远端右肺上叶背段胸膜上见不规则片状高密度灶，边界不清，密度不均匀，内见不规则空洞形成，范围约26MM×40MM，增强扫描轻中度不均匀强化。两肺下叶、左肺中叶、右肺上叶外基底段尚可见多发斑片状、条索状及类结节灶，边界欠清；右肺上叶外基底段见少许斑片灶。两肺纹理稀疏，见多发小类圆形透亮区。右肺上叶背段支气管腔稍狭窄，气管及余支气管分支通畅。右上气管旁、主肺动脉窗、隆突上、右肺门见多个淋巴结，较大者短径约25MM，增强不均匀明显强化，隆突上淋巴结较前明显增大，内见坏死。血管前、左上气管旁见数个小淋巴结，较大者短径约6MM。左肺门、两侧腋窝未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝实质见数个小类圆形低密度病变，边界清晰，较大者长径约15MM，增强扫描未见强化。肝内胆管正常，其内未见结石，胆囊大小正常，其内未见结石，胆总管未见扩张，其内未见结石影。肝门区结构未见异常。门静脉未见充盈缺损。脾及胰腺大小、形态正常，密度均匀。两肾实质见数个小类圆形低密度病灶，边界清晰，较大者直径约4MM，增强扫描未见强化。两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围内骨质未见明显破坏。</t>
+    <t>SPECT/CT显像结合全身骨平面显像：右侧髂骨不伴显像剂浓聚的高密度灶，考虑为良性病变可能，请短期随访；所示胸腰椎及两侧骶髂关节退行性变。显像方法：&lt;?xml:namespaceprefix=ons="urn:schemas-microsoft-com:office:office"/&gt;静脉注射99MMTc-MDP约3小时后，患者取仰卧位，ANT、POST位采集全身骨骼平面影像。全身骨骼平面显像完毕后，患者取仰卧位，SPECT/CT采集中上段胸肋至骶髂关节断层影像，经计算机处理得到横断面、矢状面、冠状面影像。影像所见：全身骨骼显影清晰，显像剂分布不均匀对称，胸椎及左侧骶髂部显像剂略浓聚；余处骨骼未见明显显像剂异常分布。　　SPECT/CT融合图像示：所示中上段胸椎及腰椎顺列，生理曲度存在，部分椎体边缘及椎小关节骨质增生，伴显像剂略浓聚；所示两侧肋骨在位，走行正常；两侧骶髂关节在位，组成骨缘骨质增生，伴显像剂略浓聚，左侧略显著；右侧髂骨见高密度灶，不伴显像剂异常浓聚；余所示骨骼未见明显骨质吸收破坏征象或显像剂异常分布。</t>
+  </si>
+  <si>
+    <t>右肺癌化疗后，对比2016-10-19CT：_x0004_右肺上叶背段肺门旁少许软组织灶，较前稍大；右肺上叶胸膜上病变，较前相仿。_x0004_纵隔及右肺门淋巴结转移，隆突上及右肺门淋巴结较前增大。_x0004_两肺肺气肿，少许纤维增殖灶，大致同前。_x0004_右肺上叶外基底段少许斑片灶，考虑炎症，较前减少。_x0004_肝多发小囊肿大致同前；两肾小囊肿，同前。右肺癌化疗后：_x0004_右肺上叶背段肺门旁见斑片状软组织灶，边界不清，形态不规则，与肿大淋巴结分界不清，大小难以准确测量，增强扫描较明显强化；病变远端右肺上叶背段胸膜上见不规则片状高密度灶，边界不清，密度不均匀，内见不规则空洞形成，范围约26MM×40MM，增强扫描轻中度不均匀强化。_x0004_两肺下叶、左肺中叶、右肺上叶外基底段尚可见多发斑片状、条索状及类结节灶，边界欠清；右肺上叶外基底段见少许斑片灶。两肺纹理稀疏，见多发小类圆形透亮区。右肺上叶背段支气管腔稍狭窄，气管及余支气管分支通畅。_x0004_右上气管旁、主肺动脉窗、隆突上、右肺门见多个淋巴结，较大者短径约25MM，增强不均匀明显强化，隆突上淋巴结较前明显增大，内见坏死。血管前、左上气管旁见数个小淋巴结，较大者短径约6MM。左肺门、两侧腋窝未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜粘连。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝实质见数个小类圆形低密度病变，边界清晰，较大者长径约15MM，增强扫描未见强化。肝内胆管正常，其内未见结石，胆囊大小正常，其内未见结石，胆总管未见扩张，其内未见结石影。肝门区结构未见异常。门静脉未见充盈缺损。脾及胰腺大小、形态正常，密度均匀。两肾实质见数个小类圆形低密度病灶，边界清晰，较大者直径约4MM，增强扫描未见强化。两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_扫描范围内骨质未见明显破坏。</t>
   </si>
   <si>
     <t>左上肺占位性病变，考虑肺癌可能性大；左上肺节段性不张；两侧肺气肿；两肺条索及斑片模糊影，考虑炎症并间质纤维化改变；左侧胸膜多发转移瘤；左侧中量胸腔积液；纵隔及左肺门淋巴结肿大，考虑转移；肝S1、4、6多发结节，考虑转移瘤可能性大；肝内多发囊肿；两肾小囊肿；腹腔干周围淋巴结肿大，考虑转移。两肺纹理紊乱，左肺上叶纵隔旁见一软组织肿块，约35MM×36MM，边界欠清，密度欠均，增强扫描可见不均匀明显强化。左上肺体积缩小，肺纹理聚集，呈斑片状稍高密度影，其内见支气管气相，增强扫描可见强化。余肺内见弥漫囊薄壁透亮影，左下肺、右下肺上舌叶及右上肺见斑片及条索状模糊影，部分呈网格状，增强扫描未见明显实性强化灶。气管及支气管分支通畅。左上气管旁、左肺门见多发淋巴结，大者直径约22MM，界清，增强扫描强化较明显。左侧见中量胸腔积液。左前、侧及左上小胸壁胸膜见多发结节状稍高密度影，大者约22MM×26MM，边界较清，增强扫描可见明显强化。右侧未见明显胸腔积液及胸膜增厚。肝脏形态、各叶比例未见明显异常，轮廓光整，肝S1、4、6内见多发类结节状稍低密度影，大者直径约19MM，边界较清，增强扫描轻度强化。肝内另见多发囊状低密度灶，界清，大者直径约24MM，增强扫描无明显强化。肝内外胆管无扩张，胆囊不大，未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾见小囊状低密度灶，界清，大者直径约5MM，无明显强化。两肾下腺所见正常。腹腔干周围见数个淋巴结，大者直径约13MM，密度不均，增强扫描不均匀强化。所示骨质未见明显破坏征象。</t>
@@ -4334,7 +4334,7 @@
     <t>左侧胸膜,纵隔及左肺门淋巴结,肝S1、4、6多发结节,腹腔干周围淋巴结</t>
   </si>
   <si>
-    <t>左下肺癌多发转移化疗后，对比2017.02.25片：左肺下叶肿物，较前稍增大。纵隔小淋巴结，较前变化不大。左侧胸膜散在小结节状增厚，较前无明显变化。多发骨病变，考虑转移瘤，大致同前。甲状腺右叶病变、右侧食管气管旁沟结节，考虑胸骨后甲状腺并结节性甲状腺肿可能性大，大致同前。肝多发囊肿，基本同前。左下肺癌多发转移化疗后，对比2017.02.25片：左肺下叶近肺门区见软组织肿块，边缘不规则，可见分叶及短毛刺，范围约27MM×22MM，密度欠均匀，增强扫描均匀明显强化，较前稍增大；包绕左肺下叶支气管及部分分支，管腔部分狭窄；邻近肺组织见斑片状、条片状高密度影，边界模糊，范围较前变化不大。左上气管旁见小淋巴结，边界清，短径约4MM，增强后轻度强化，大致同前。两侧胸腔未见积液。左侧叶间胸膜及肋胸膜见散在小结节状增厚，增强后强化，较前无明显变化。甲状腺两侧叶明显增大，密度不均匀，部分突入纵隔，内可见多发低密度灶，大者大小约15MM×14MM，不均匀强化；右侧气管食管旁沟见一结节，大小约25MM×18MM，密度不均匀，增强后局部强化与甲状腺组织相仿，下缘与甲状腺右叶分界不清，大致同前。肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，肝内见多个低密度影，边界光滑，增强扫描各期未见强化，最大位于S6/7，大小约35MM×25MM，基本同前。肝内外胆管未见扩张，其内未见结石影，胆囊不大，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾上极在脊柱前方相连。两肾下腺大小、形态未见异常，密度均匀。胃右、腹腔干、腹主动脉旁见淋巴结，最大短径约4MM，孤立散在，大致同前。胸骨柄、胸11椎体右前份、胸12椎体左后份及左侧第2前肋、左第8肋腋段骨质密度不均匀，部分内见低密度区，边缘模糊，局部椎体骨皮质欠连续。胸骨柄、胸9、11、12椎体及两侧多根肋骨骨质见多发骨质密度减低及增高影，边界不清，较前变化不大。</t>
+    <t>左下肺癌多发转移化疗后，对比2017.02.25片：_x0004_左肺下叶肿物，较前稍增大。_x0004_纵隔小淋巴结，较前变化不大。_x0004_左侧胸膜散在小结节状增厚，较前无明显变化。_x0004_多发骨病变，考虑转移瘤，大致同前。_x0004_甲状腺右叶病变、右侧食管气管旁沟结节，考虑胸骨后甲状腺并结节性甲状腺肿可能性大，大致同前。_x0004_肝多发囊肿，基本同前。左下肺癌多发转移化疗后，对比2017.02.25片：_x0004_左肺下叶近肺门区见软组织肿块，边缘不规则，可见分叶及短毛刺，范围约27MM×22MM，密度欠均匀，增强扫描均匀明显强化，较前稍增大；包绕左肺下叶支气管及部分分支，管腔部分狭窄；邻近肺组织见斑片状、条片状高密度影，边界模糊，范围较前变化不大。_x0004_左上气管旁见小淋巴结，边界清，短径约4MM，增强后轻度强化，大致同前。两侧胸腔未见积液。左侧叶间胸膜及肋胸膜见散在小结节状增厚，增强后强化，较前无明显变化。_x0004_甲状腺两侧叶明显增大，密度不均匀，部分突入纵隔，内可见多发低密度灶，大者大小约15MM×14MM，不均匀强化；右侧气管食管旁沟见一结节，大小约25MM×18MM，密度不均匀，增强后局部强化与甲状腺组织相仿，下缘与甲状腺右叶分界不清，大致同前。_x0004_肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，肝内见多个低密度影，边界光滑，增强扫描各期未见强化，最大位于S6/7，大小约35MM×25MM，基本同前。_x0004_肝内外胆管未见扩张，其内未见结石影，胆囊不大，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾上极在脊柱前方相连。两肾下腺大小、形态未见异常，密度均匀。_x0004_胃右、腹腔干、腹主动脉旁见淋巴结，最大短径约4MM，孤立散在，大致同前。_x0004_胸骨柄、胸11椎体右前份、胸12椎体左后份及左侧第2前肋、左第8肋腋段骨质密度不均匀，部分内见低密度区，边缘模糊，局部椎体骨皮质欠连续。_x0004_胸骨柄、胸9、11、12椎体及两侧多根肋骨骨质见多发骨质密度减低及增高影，边界不清，较前变化不大。</t>
   </si>
   <si>
     <t>27MM×22MM</t>
@@ -4343,7 +4343,7 @@
     <t>胸骨柄,胸11椎体右前份,胸12椎体左后份,左侧第2前肋,左第8肋腋段骨</t>
   </si>
   <si>
-    <t>静息状态上超声心动图未见异常(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，33，20-37MM，右房内径，37，19-40MM，右室舒张末内径，47，35-56MM，右室收缩末内径，29，23-35MM，室间隔厚度，9，6-11MM，右室后壁厚度，9，6-11MM，肺动脉收缩压，30，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，69，%，二尖瓣血流图：，E、A两峰，，E/A，=，1；DT：，222，ms，DTI示S波峰值：，12.8，cm/s；E/A，&amp;lt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，正常，，右室内径，正常，，右室壁厚度，正常，，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，，开放不受限，彩色多普勒，未测及，二尖瓣反流。，3、主动脉窦部，不增宽，，升主动脉，不增宽，，主动脉瓣，不增厚，，，开放不受限，，彩色多普勒，未测及，主动脉瓣反流。，4、左房内径，正常，，左室内径，正常，，左室收缩活动未见异常。肺动脉，不增宽，，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
+    <t>静息状态上超声心动图未见异常(心脏彩色多普勒超声+右心功能测定+TDI),常规检查切面观,：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、M型及血流多普勒超声测量：,名称,测量值,正常值,主动脉根部内径,33,20-37MM,右房内径,37,19-40MM,右室舒张末内径,47,35-56MM,右室收缩末内径,29,23-35MM,室间隔厚度,9,6-11MM,右室后壁厚度,9,6-11MM,肺动脉收缩压,30,&amp;lt;40MMHg,医学图像序列2行2列,宽：110,二、右心功能测定及组织多普勒显像测量:,右室射血分数（LVEF）：,69,%,二尖瓣血流图：,E、A两峰,，E/A,=,1；DT：,222,ms,DTI示S波峰值：,12.8,cm/s；E/A,&amp;lt;,1,三、普通二维超声心动图和各心腔及大血管血流显像：,1、右房内径,正常,，右室内径,正常,，右室壁厚度,正常,，静息状态上右室各节段收缩活动未见异常。,2、二尖瓣,不增厚,，开放不受限，彩色多普勒,未测及,二尖瓣反流。,3、主动脉窦部,不增宽,，升主动脉,不增宽,，主动脉瓣,不增厚,，,开放不受限,，彩色多普勒,未测及,主动脉瓣反流。,4、左房内径,正常,，左室内径,正常,，左室收缩活动未见异常。肺动脉,不增宽,，三尖瓣不增厚，开放不受限，彩色多普勒,示轻微,三尖瓣反流。,5、心包腔内,未见明显积液,。,四、结论：,</t>
   </si>
   <si>
     <t>右上肺癌综合治疗后，与2016-02-04日片对比：右肺上叶术后缺失。右残肺内少许纤维增殖灶。右上胸膜增厚。左肺下叶、上叶类结节影同前，建议随访。纵膈及右侧锁骨下淋巴结转移，较前未见明显变化。右侧胸腔少量积液同前。甲状腺右叶病灶，考虑结节性甲状腺肿。肝S2小囊肿。胆囊小结石。右肾小囊肿。右上肺癌综合治疗后，与2016-02-04日片对比：右肺下叶术后缺失。右肺上叶见少许纤维条索，边界清晰，未见明确结节影，大致同前。左肺可见数个小类结节影，较大者直径约3MM，边界欠清，较前未见明显变化。气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。右侧锁骨下、血管前、上气管旁见多个淋巴结，最大者短径约12MM，边界不清，密度不均，内见坏死，增强后可见明显强化，较前未见明显变化。右侧胸腔见少量积液同前。左侧胸腔未见积液。右上胸膜增厚。扫描所见甲状腺右侧叶可见2个结节，较大者约14MM×12MM，边界清晰，未见强化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S2见一小囊性灶，直径约为3MM，边界清楚，增强后未见强化，肝内未见异常密度影及强化灶。肝内胆管正常，其内未见结石影，胆囊大小正常，其内见小结石影，胆总管未见扩张，其内未见结石影。肝门区正常；门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见一囊性灶，大小约7MM×4MM，边界清晰，增强扫描未见强化，左肾所见正常。两肾下腺所见正常。膈脚后、腹主动脉旁未见肿大淋巴结。扫描层面中胸椎、腰椎、肋骨未见明确骨质破坏征象。</t>
@@ -4358,7 +4358,7 @@
     <t>肝内多发占位-考虑MT射频治疗后改变，建议超声造影进一步明确有无血供；手术区积液；脂肪肝肝肋上斜切115MM/（－），剑上纵切48MM/2指，肝区回声密集增强，肝内隐约见数个稍高回声团块，较大者31MM×23MM，CDFI未见彩色血流。门静脉主干旁另见一枚28MM×26MM低回声团块，CDFI未见明显彩色血流。门脉主干内径10MM。脾肋间切36MM/（－）。胆囊未显示，胆总管5MM。胰头m15MM，胰体12MM，胰尾14MM。左肾92MM×38MM×40MM，肾盂分离（－），右肾95MM×45MM×43MM，肾盂分离（－）。两侧输尿管未见明显扩张。两侧肾下腺区未见明显肿块回声。CDFI肝胰肾血流正常。肝左后叶手术区见95MM×64MM无回声区，胆囊窝处见42MM×21MM无回声区。</t>
   </si>
   <si>
-    <t>两侧附件增大，MT可能，右侧附件区囊腺瘤机会大；子宫多发小肌瘤，建议MRI检查；后腹膜及肝胃间隙、髂血管旁多发肿大淋巴结，左侧腹膜增厚，左侧肾后筋膜结节（种植转移可能）；肝微小囊肿，脾脉管瘤可能大，两肾囊肿；胆结石；左侧胸腔积液伴左肺压迫性不张。两侧附件区见软组织影，增强后轻中度强化；右侧附件区见囊实性灶，大小约32MM×46MM，肝胃间隙及后腹膜、髂血管旁见多发肿大淋巴结，左侧肾后筋膜见软组织影，直径约12.5MM；左侧腹膜增厚；肝脏表面光滑，各叶比例匀称，肝左叶见无强化小囊性灶，肝内血管未见狭窄或充盈缺损；脾脏未见肿大，内见多发等低密度小结节灶，直径&amp;lt；5MM，动脉期边界较清，门脉期病灶似有逐渐填充；胆管未见扩张；两肾见无强化小囊性灶，胰腺无殊；腹盆腔内无积液。子宫形态欠规则，见多枚结节状等低密度灶，直径约25MM，部分结节状内见斑片状钙化灶，增强后环状或斑片状明显强化，肝周见结肠影，左侧大量胸腔积液伴左肺压迫性不张。</t>
+    <t>两侧附件增大，MT可能,右侧附件区囊腺瘤机会大；子宫多发小肌瘤，建议MRI检查；_x0004_后腹膜及肝胃间隙、髂血管旁多发肿大淋巴结，左侧腹膜增厚，左侧肾后筋膜结节（种植转移可能）；_x0004_肝微小囊肿，脾脉管瘤可能大，两肾囊肿；胆结石；左侧胸腔积液伴左肺压迫性不张。两侧附件区见软组织影，增强后轻中度强化；右侧附件区见囊实性灶，大小约32MM×46MM，肝胃间隙及后腹膜、髂血管旁见多发肿大淋巴结，左侧肾后筋膜见软组织影，直径约12.5MM；左侧腹膜增厚；肝脏表面光滑，各叶比例匀称，肝左叶见无强化小囊性灶，肝内血管未见狭窄或充盈缺损；脾脏未见肿大，内见多发等低密度小结节灶，直径&amp;lt;5MM，动脉期边界较清，门脉期病灶似有逐渐填充；胆管未见扩张；两肾见无强化小囊性灶，胰腺无殊；腹盆腔内无积液。子宫形态欠规则，见多枚结节状等低密度灶，直径约25MM，部分结节状内见斑片状钙化灶，增强后环状或斑片状明显强化，肝周见结肠影，左侧大量胸腔积液伴左肺压迫性不张。</t>
   </si>
   <si>
     <t>两侧附件</t>
@@ -4388,10 +4388,10 @@
     <t>左肺上叶外基底段,左肺门,纵隔多发肿大淋巴结,T12椎体</t>
   </si>
   <si>
-    <t>1.右房增大伴轻度二尖瓣反流2.室间隔基底段增厚(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，33，20-37MM，右房内径，45，19-40MM，右室舒张末内径，43，35-56MM，右室收缩末内径，28，23-35MM，室间隔厚度，14，6-11MM，右室后壁厚度，10，6-11MM，肺动脉收缩压，38，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，64，%，二尖瓣血流图：，E、A两峰，，E/A，&amp;lt；，1；DT：，192，ms，DTI示S波峰值：，7，cm/s；E/A，&amp;lt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，增大，，右室内径，正常，，室间隔基底段增厚，余右室壁厚度，正常，，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，，开放不受限，彩色多普勒，示轻度，二尖瓣反流。，3、主动脉窦部，不增宽，，升主动脉，不增宽，，主动脉瓣，不增厚，，，开放不受限，，彩色多普勒，示轻微，主动脉瓣反流。，4、左房内径，正常，，左室内径，正常，，左室收缩活动未见异常。肺动脉，不增宽，，三尖瓣不增厚，开放不受限，彩色多普勒，示轻度，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
-  </si>
-  <si>
-    <t>1.考虑为左肺中上叶近肺门处中央型MT伴远端阻塞性炎症可能，请结合临床；左肺下叶尖段慢性炎性小结节，请随访；2.右腹无明显糖代谢异常增高的巨大占位，考虑为良性病变（小肠巨大憩室？）；脾脏良性病变，请结合临床；盆腔少量积液。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示左肺中上叶近肺门处见糖代谢异常增高的肿块，最大SUV值为12.9，范围约为56.4MM×60.6MM，左肺中上叶支气管开口截断，左肺下叶支气管受压变窄，肿块远端肺组织大片实变，最大SUV值约为3.0；左肺下叶尖段无明显糖代谢的微小结节；余肺野、右肺门、纵隔、胸壁、腋窝等均未见明显糖代谢异常增高灶，余肺野未见明显占位，纵隔无明显肿大淋巴结，右肺门影不大，两侧胸腔无积液；心脏无明显增大；两侧腋窝无明显肿大淋巴结；两侧乳腺无明显占位。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示右腹（L2水平）不伴糖代谢异常增高的巨大占位，向上延伸至S2水平，最大横截面积约为199.0MM×153.0MM，内见气液平和致密结节影，边界清楚，边缘局部钙化，局部与小肠分界不清，脐部受挤压突出；肝脏实质内未见明显占位；肝内外胆管无扩张；脾脏不大，密度不均，内见大小约为16.6MM×14.3MM低密度灶；胆囊、胰、两肾、肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈，壁光滑无增厚；子宫和两附件区未见明显占位，宫腔内见金属环影；盆腔和两侧腹股沟无肿大淋巴结；盆腔少量积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，脊柱侧弯；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见异常。</t>
+    <t>1.右房增大伴轻度二尖瓣反流2.室间隔基底段增厚(心脏彩色多普勒超声+右心功能测定+TDI),常规检查切面观,：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、M型及血流多普勒超声测量：,名称,测量值,正常值,主动脉根部内径,33,20-37MM,右房内径,45,19-40MM,右室舒张末内径,43,35-56MM,右室收缩末内径,28,23-35MM,室间隔厚度,14,6-11MM,右室后壁厚度,10,6-11MM,肺动脉收缩压,38,&amp;lt;40MMHg,医学图像序列2行2列,宽：110,二、右心功能测定及组织多普勒显像测量:,右室射血分数（LVEF）：,64,%,二尖瓣血流图：,E、A两峰,，E/A,&amp;lt;,1；DT：,192,ms,DTI示S波峰值：,7,cm/s；E/A,&amp;lt;,1,三、普通二维超声心动图和各心腔及大血管血流显像：,1、右房内径,增大,，右室内径,正常,，室间隔基底段增厚,余右室壁厚度,正常,，静息状态上右室各节段收缩活动未见异常。,2、二尖瓣,不增厚,，开放不受限，彩色多普勒,示轻度,二尖瓣反流。,3、主动脉窦部,不增宽,，升主动脉,不增宽,，主动脉瓣,不增厚,，,开放不受限,，彩色多普勒,示轻微,主动脉瓣反流。,4、左房内径,正常,，左室内径,正常,，左室收缩活动未见异常。肺动脉,不增宽,，三尖瓣不增厚，开放不受限，彩色多普勒,示轻度,三尖瓣反流。,5、心包腔内,未见明显积液,。,四、结论：,</t>
+  </si>
+  <si>
+    <t>1.考虑为左肺中上叶近肺门处中央型MT伴远端阻塞性炎症可能，请结合临床；左肺下叶尖段慢性炎性小结节，请随访；_x0004_2.右腹无明显糖代谢异常增高的巨大占位，考虑为良性病变（小肠巨大憩室？）；脾脏良性病变，请结合临床；盆腔少量积液。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示左肺中上叶近肺门处见糖代谢异常增高的肿块，最大SUV值为12.9，范围约为56.4MM×60.6MM，左肺中上叶支气管开口截断，左肺下叶支气管受压变窄，肿块远端肺组织大片实变，最大SUV值约为3.0；左肺下叶尖段无明显糖代谢的微小结节；余肺野、右肺门、纵隔、胸壁、腋窝等均未见明显糖代谢异常增高灶，余肺野未见明显占位，纵隔无明显肿大淋巴结，右肺门影不大，两侧胸腔无积液；心脏无明显增大；两侧腋窝无明显肿大淋巴结；两侧乳腺无明显占位。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示右腹（L2水平）不伴糖代谢异常增高的巨大占位，向上延伸至S2水平，最大横截面积约为199.0MM×153.0MM，内见气液平和致密结节影，边界清楚，边缘局部钙化，局部与小肠分界不清，脐部受挤压突出；肝脏实质内未见明显占位；肝内外胆管无扩张；脾脏不大，密度不均，内见大小约为16.6MM×14.3MM低密度灶；胆囊、胰、两肾、肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈，壁光滑无增厚；子宫和两附件区未见明显占位，宫腔内见金属环影；盆腔和两侧腹股沟无肿大淋巴结；盆腔少量积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，脊柱侧弯；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见异常。</t>
   </si>
   <si>
     <t>左肺中上叶近肺门处</t>
@@ -4421,7 +4421,7 @@
     <t>右侧第2、4、9肋骨,第10胸椎</t>
   </si>
   <si>
-    <t>左肺MT脑转移综合治疗后：1.右侧颞叶转移；左肺下叶小结节，请随访；左侧局部胸膜、心包膜略增厚；2.甲状腺右叶上极结节较前缩小，糖代谢减低；甲状腺左叶结节糖代谢减低；3.肝脏多发良性病变，部分较前增大，部分较前缩小。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像，并与2012-7-6本院PET/CT图像比较。脑部PET/CT图像示右侧颞叶见稍低密度灶，范围约为18.0MM×16.3MM，不伴糖代谢异常增高，周边可见片状水肿带；余脑实质内未见异常糖代谢增高灶或占位。脑池、脑室无扩大；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。筛窦及右侧下颌窦炎症较前吸收。颈部PET/CT图像示甲状腺右叶上极见糖代谢异常增高的低密度灶，大小约为8.4MM×6.1MM，最大SUV值约为5.9，较前缩小、糖代谢减低；甲状腺左叶中部见一大小约8.9MM×5.4MM的低密度结节，大小与前相仿，糖代谢基本消失；甲状腺右叶中部钙化结节与前相仿；两侧颈部未见明显糖代谢异常增高灶及肿大淋巴结；口咽、喉咽部无殊。胸部PET/CT图像示左肺MT术后，术区局部胸膜增厚；左肺下叶见直径小于3.0MM的小结节，不伴糖代谢增高；纵隔、两肺门和两腋窝未见明显糖代谢异常增高灶及肿大淋巴结；两侧胸腔无积液；心影不大；心包膜增厚；两侧乳腺未见明显占位及糖代谢异常增高灶。腹部PET/CT图像示右侧肾下腺术后缺如；左侧肾下腺无殊；肝脏实质内多发不伴明显糖代谢增高的囊性灶，较大者位于右内叶，大小约为23.0MM×17.0MM，部分囊性灶较前增大，部分较前缩小；肝脏实质内另见不伴明显糖代谢增高的低密度灶，较大者位于左前叶，大小约为13.9MM×14.5MM，较前增大；肝内外胆管无扩张；胃壁及肠道生理性糖代谢增强；胆囊、胰、脾、两肾无殊；腹膜后未见明显糖代谢异常增高灶或肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道生理性糖代谢增强；生殖器及两侧腹股沟处未见明显异常糖代谢增强。CT平扫示子宫术后缺如；两附件区未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示新增左侧第1胸肋关节糖代谢增高灶，局部骨质增生，最大SU值约为2.5，考虑为退行性改变；左侧第5后肋骨皮质连续性中断，无明显糖代谢增高，考虑为术后改变；部分胸椎椎体内密度减低，未见明显糖代谢异常增高。</t>
+    <t>左肺MT脑转移综合治疗后：1.右侧颞叶转移；左肺下叶小结节，请随访；左侧局部胸膜、心包膜略增厚；_x0004_2.甲状腺右叶上极结节较前缩小，糖代谢减低；甲状腺左叶结节糖代谢减低；_x0004_3.肝脏多发良性病变，部分较前增大，部分较前缩小。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像，并与2012-7-6本院PET/CT图像比较。脑部PET/CT图像示右侧颞叶见稍低密度灶，范围约为18.0MM×16.3MM，不伴糖代谢异常增高，周边可见片状水肿带；余脑实质内未见异常糖代谢增高灶或占位。脑池、脑室无扩大；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。筛窦及右侧下颌窦炎症较前吸收。颈部PET/CT图像示甲状腺右叶上极见糖代谢异常增高的低密度灶，大小约为8.4MM×6.1MM，最大SUV值约为5.9，较前缩小、糖代谢减低；甲状腺左叶中部见一大小约8.9MM×5.4MM的低密度结节，大小与前相仿，糖代谢基本消失；甲状腺右叶中部钙化结节与前相仿；两侧颈部未见明显糖代谢异常增高灶及肿大淋巴结；口咽、喉咽部无殊。胸部PET/CT图像示左肺MT术后，术区局部胸膜增厚；左肺下叶见直径小于3.0MM的小结节，不伴糖代谢增高；纵隔、两肺门和两腋窝未见明显糖代谢异常增高灶及肿大淋巴结；两侧胸腔无积液；心影不大；心包膜增厚；两侧乳腺未见明显占位及糖代谢异常增高灶。腹部PET/CT图像示右侧肾下腺术后缺如；左侧肾下腺无殊；肝脏实质内多发不伴明显糖代谢增高的囊性灶，较大者位于右内叶，大小约为23.0MM×17.0MM，部分囊性灶较前增大，部分较前缩小；肝脏实质内另见不伴明显糖代谢增高的低密度灶，较大者位于左前叶，大小约为13.9MM×14.5MM，较前增大；肝内外胆管无扩张；胃壁及肠道生理性糖代谢增强；胆囊、胰、脾、两肾无殊；腹膜后未见明显糖代谢异常增高灶或肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道生理性糖代谢增强；生殖器及两侧腹股沟处未见明显异常糖代谢增强。CT平扫示子宫术后缺如；两附件区未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示新增左侧第1胸肋关节糖代谢增高灶，局部骨质增生，最大SU值约为2.5，考虑为退行性改变；左侧第5后肋骨皮质连续性中断，无明显糖代谢增高，考虑为术后改变；部分胸椎椎体内密度减低，未见明显糖代谢异常增高。</t>
   </si>
   <si>
     <t>右侧颞叶</t>
@@ -4433,13 +4433,13 @@
     <t>肾盂癌术后、化疗后复查，与2014-05-28片对比：术区未见明确肿瘤复发征象；轻度脂肪肝；左肺下叶尖段条索、类结节影，考虑增殖灶，较前相仿；右肺上叶后基底段小结节，较前相仿，考虑增殖灶可能性大；右锁骨下窝、纵隔小淋巴结，较前未见明显变化；左心房内充盈缺损影，较前未见明显变化；甲状腺两叶病灶，考虑结节性甲状腺肿；腰1椎体压缩性骨折，大致同前。肾盂癌术后、化疗后复查，与2014-05-28片对比：右肾术后缺失，局部未见明确软组织肿物。左肾及两侧肾下腺未见异常。肝脏形态、比例正常，轮廓光整，肝实质密度轻度减低，未见明显异常强化。肝内外胆管无扩张，胆囊不大，胆总管未见扩张，未见结石影。肝门区及门静脉未见明显异常。脾脏及胰腺大小、形态、密度未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。子宫大小、形态未见明显异常，子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。两侧腹股沟区、髂血管旁未见肿大淋巴结。两肺纹理清晰，左肺下叶尖段见条索、类结节影，大者直径约3MM，边界清楚，边缘不规整，与邻近胸膜牵拉粘连，大致同前。右肺上叶后基底段见一小结节，直径约为3MM，边界清楚，边缘规整，较前相仿。气管及支气管分支通畅。右锁骨下窝、左上气管旁、主动脉旁见数个小淋巴结，最大约6MM×8MM，边界清楚，较前未见明显变化。两侧胸腔未见积液。两侧胸膜未见增厚、粘连。左心房充盈欠佳，内见少许低密度影，未见明显强化，较前未见明显变化。扫描层面内甲状腺两叶见多个结节状低密度病灶，最大者约为8MM×11MM，增强后轻度强化或强化不明显，较前相仿。腰1椎体变扁呈楔形，椎体内见散在斑点斑块状致密影。余骨质未见明确破坏征象。</t>
   </si>
   <si>
-    <t>右房增大常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，36，20-37，右房内径，42，19-40，右室舒张末内径，42，35-56，右室收缩末内径，27，23-35，室间隔厚度，10，6-11，右室后壁厚度，9，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房增大，右室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，肺动脉血流图未见异常。，三、，右心功能测定：，LVEF：63%；，二尖瓣血流图示E/A，&amp;lt；，1；DT：120MMs，四、组织多普勒测定：，DTI示S波峰值：16CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
+    <t>右房增大常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,36,20-37,右房内径,42,19-40,右室舒张末内径,42,35-56,右室收缩末内径,27,23-35,室间隔厚度,10,6-11,右室后壁厚度,9,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房增大，右室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。,3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。,4、左房室不大，肺动脉不增宽，肺动脉血流图未见异常。,三、,右心功能测定：,LVEF：63%;,二尖瓣血流图示E/A,&amp;lt;,1;DT:120MMs,四、组织多普勒测定：,DTI示S波峰值:16CM/s;E'/A',&amp;lt;,1,五、结论：,</t>
   </si>
   <si>
     <t>肝囊肿，右肾囊肿肝肋上斜切117MM/（－），剑上纵切61MM/2指，肝区回声较密欠均，内见数个无回声区，最大15MM×13MM，门脉主干内径10MM，左支内径8MM，流速0.18MM/s，主干及右左支血流通畅，为向肝血流，流速曲线正常，脾门处脾静脉内径5MM，血流通畅。肝静脉血流通畅。脾肋间切30MM/（－）。胆囊65MM×24MM，胆总管4MM。胰头15MM，胰体14MM，胰尾11MM。左肾102MM×42MM×48MM，肾盂分离(-)，右肾105MM×51MM×44MM，上极见8MM无回声区，肾盂分离(-)。两侧输尿管未见明显扩张。两侧肾下腺区未见明显肿块回声。CDFI肝胆胰肾血流正常。腹膜后未见明显肿块回声。</t>
   </si>
   <si>
-    <t>升主动脉稍增宽常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，37，20-37，右房内径，32，19-40，右室舒张末内径，41，35-56，右室收缩末内径，28，23-35，室间隔厚度，8，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。，3、主动脉窦部内径正常下限，升主动脉增宽为38MM，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约22MMHg，。，三、，右心功能测定：，LVEF：64%；二尖瓣血流图示E/A，&amp;gt；，1；DT：100MMs，四、组织多普勒测定：，DTI示S波峰值：14.8CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
+    <t>升主动脉稍增宽常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,37,20-37,右房内径,32,19-40,右室舒张末内径,41,35-56,右室收缩末内径,28,23-35,室间隔厚度,8,6-11,右室后壁厚度,8,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。,3、主动脉窦部内径正常下限，升主动脉增宽为38MM，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。,4、左房室不大，肺动脉不增宽，,连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约22MMHg,。,三、,右心功能测定：,LVEF:64%；二尖瓣血流图示E/A,&amp;gt;,1;DT:100MMs,四、组织多普勒测定：,DTI示S波峰值:14.8CM/s;E'/A',&amp;lt;,1,五、结论：,</t>
   </si>
   <si>
     <t>直肠癌术后肺转移、肝转移综合治疗后，与2015-04-28日片对比：直肠癌术后改变，未见明确复发征。两侧乳腺癌术后改变，局部未见明显复发。两肺多发病变，左肺上叶前基底段病灶较前稍增大，余较前未见明显变化。肝S4、S7病灶，考虑消融术后改变，较前未见明显变化。肝S7结节，考虑血管瘤，同前。肝S7肝内胆管结石。甲状腺左叶结节，较前未见明显变化，考虑良性。直肠癌术后肺转移、肝转移综合治疗后，与2015-04-28日片对比：左肺下叶尖段见一结节灶，大小约16MM×13MM，边界不清，密度不均匀，增强扫描不均匀强化，病灶周围见多发条索灶，与邻近胸膜牵拉粘连，较前变化不大。左肺上叶前基底段见一结节，大小约15MM×13MM，边界不清，密度不均匀，增强扫描轻度强化，较前稍增大。左肺中叶胸膜上及上叶后基底段各见一小厚壁空洞灶，大小约3MM×4MM、12MM×9MM，边缘模糊，周围见条索灶，与邻近胸膜粘连，较前变化不大。右肺纹理清晰，未见明显实质性病变。气管及支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜未见增厚。两侧乳腺术后缺失，两侧腋窝未见肿大淋巴结。甲状腺左叶体积增大，见一稍低密度结节，大小约16MM×13MM，边界清楚，增强扫描较明显强化，大致同前。肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝S4、S7各见一斑片状低密度病变，较大者大小约26MM×16MM，边界清晰，增强扫描未见强化。肝S7见一结节，大小约13MM×9MM，边界清楚，增强扫描各期均见明显强化。肝S7另见一颗粒状致密灶。肝内外胆管未见扩张，胆囊不大，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾及胰腺形态、大小及密度未见异常。两肾及两侧肾下腺未见异常。肝门区及腹膜后未见肿大淋巴结。直肠癌术后，吻合口区肠壁未见明显增厚，肠周间隙清晰。膀胱充盈良好，境界清楚。子宫、宫颈大小、形态未见异常，宫腔内见金属节育环。两侧附件区未见明确肿块。两侧腹股沟区及两侧髂血管旁未见肿大淋巴结。扫描范围内未见明确骨质破坏。</t>
@@ -4448,7 +4448,7 @@
     <t>直肠,两侧乳腺癌</t>
   </si>
   <si>
-    <t>右肺小细胞肺癌化疗后复查，与2017-05-23片相比：右下肺尖后段肿块，较前改变不明显。两上肺少许纤维增殖灶。纵隔、右肺门多发淋巴结，考虑转移，基本同前。右肺小细胞肺癌化疗后复查：右下肺尖后段见分叶状软组织肿块，大小约49MM×46MM，可见毛刺，未见明显空洞，T2WI、DWI呈稍高信号，T1WI呈等信号，增强扫描不均匀明显强化。病灶周围见斑片及索条状T2WI稍高信号、T1WI呈等或稍低信号，增强扫描轻度强化。病灶侵犯右侧纵隔胸膜，右肺下叶尖后段支气管闭塞。两上肺见小条索状T2WI稍高信号、T1WI稍低信号灶，增强扫描部分病灶强化稍明显。气管、余支气管及分支管通畅。左下气管旁、右上气管旁、主动脉旁、主肺动脉窗、隆突上及右肺门见多发淋巴结，T2WI呈稍高信号，T1WI呈等信号，增强扫描不均匀环状强化，大者短径约15MM。两侧胸腔未见积液。余两侧胸膜无增厚、粘连。心包未见积液。扫描范围未见明显骨质破坏征象。</t>
+    <t>右肺小细胞肺癌化疗后复查，与2017-05-23片相比：_x0004_右下肺尖后段肿块，较前改变不明显。_x0004_两上肺少许纤维增殖灶。_x0004_纵隔、右肺门多发淋巴结，考虑转移，基本同前。_x0004_右肺小细胞肺癌化疗后复查：_x0004_右下肺尖后段见分叶状软组织肿块，大小约49MM×46MM，可见毛刺，未见明显空洞，T2WI、DWI呈稍高信号，T1WI呈等信号，增强扫描不均匀明显强化。病灶周围见斑片及索条状T2WI稍高信号、T1WI呈等或稍低信号，增强扫描轻度强化。病灶侵犯右侧纵隔胸膜，右肺下叶尖后段支气管闭塞。两上肺见小条索状T2WI稍高信号、T1WI稍低信号灶，增强扫描部分病灶强化稍明显。气管、余支气管及分支管通畅。_x0004_左下气管旁、右上气管旁、主动脉旁、主肺动脉窗、隆突上及右肺门见多发淋巴结，T2WI呈稍高信号，T1WI呈等信号，增强扫描不均匀环状强化，大者短径约15MM。_x0004_两侧胸腔未见积液。余两侧胸膜无增厚、粘连。心包未见积液。_x0004_扫描范围未见明显骨质破坏征象。</t>
   </si>
   <si>
     <t>右下肺尖后段</t>
@@ -4460,7 +4460,7 @@
     <t>纵隔,右肺门多发淋巴结</t>
   </si>
   <si>
-    <t>None肺癌综合治疗后、全脑放疗后，对比2017-12-08片：两肺下叶、右肺上叶背段多发小结节，边界清，部分密度稍高，大者短径约3MM，较前未见明显变化。两侧肺门区未见肿物征象。两肺上叶少许纤维增殖钙化灶，大者短径约6MM，大致同前。小叶中央型肺气肿，较前相仿。两肺肺门、纵隔未见肿大淋巴结。右侧叶间胸膜小结节状增厚，较前变化不明显。两肾下腺病变，大小约26MM×30MM（右），右侧病灶大致同前；左侧病灶有所增大，大小由原来的27MM×19MM变为现在的27.4MM×20MM，均考虑转移。肝脏、胰腺、肾脏、胃、肠管未见实质性病变。盆腔未见明确占位性病变。两侧髂血管旁、腹股沟未见肿大淋巴结。幕下、幕上、脑室室管膜上多发结节，最大位于左侧小脑半球，可见囊变，大小约18MM×23MM，考虑转移瘤，最大病灶较前改变不明显；余大部分病灶显示欠清，似见缩小，建议必要时MR检查、对比。少许副鼻窦炎，稍好转。颈部未见肿大淋巴结。甲状腺、腮腺、颌上腺、扁桃体、鼻咽未见占位性病变。右左冠状动脉、大血管壁可见明显钙化，考虑动脉硬化。所见骨质未见破坏征象。</t>
+    <t>None肺癌综合治疗后、全脑放疗后，对比2017-12-08片：_x0004_两肺下叶、右肺上叶背段多发小结节，边界清，部分密度稍高，大者短径约3MM，较前未见明显变化。两侧肺门区未见肿物征象。_x0004_两肺上叶少许纤维增殖钙化灶，大者短径约6MM，大致同前。_x0004_小叶中央型肺气肿，较前相仿。_x0004_两肺肺门、纵隔未见肿大淋巴结。_x0004_右侧叶间胸膜小结节状增厚，较前变化不明显。_x0004_两肾下腺病变，大小约26MM×30MM（右），右侧病灶大致同前；左侧病灶有所增大，大小由原来的27MM×19MM变为现在的27.4MM×20MM，均考虑转移。_x0004_肝脏、胰腺、肾脏、胃、肠管未见实质性病变。_x0004_盆腔未见明确占位性病变。两侧髂血管旁、腹股沟未见肿大淋巴结。_x0004_幕下、幕上、脑室室管膜上多发结节，最大位于左侧小脑半球，可见囊变，大小约18MM×23MM，考虑转移瘤，最大病灶较前改变不明显；余大部分病灶显示欠清，似见缩小，建议必要时MR检查、对比。_x0004_少许副鼻窦炎，稍好转。_x0004_颈部未见肿大淋巴结。甲状腺、腮腺、颌上腺、扁桃体、鼻咽未见占位性病变。_x0004_右左冠状动脉、大血管壁可见明显钙化，考虑动脉硬化。_x0004_所见骨质未见破坏征象。</t>
   </si>
   <si>
     <t>肾下腺,幕下,幕上,脑室室管膜上多发结节</t>
@@ -4505,7 +4505,7 @@
     <t>脂肪肝，肝多发囊肿肝肋上斜切130MM/（－），剑上纵切70MM/2指，肝区回声较密增强尚均，肝内见多个无回声区，边界清，最大约31MM×29MM。门脉主干内径10MM。左支内径8MM，流速0.20MM/s，主干及右左支血流通畅，为向肝血流，流速曲线正常，脾门处脾静脉内径5MM，血流通畅。肝静脉血流通畅。脾肋间切30MM/（－）。胆囊63MM×20MM，胆总管4MM。胰头16MM，胰体13MM，胰尾15MM。左肾104MM×45MM×43MM，肾盂分离（－）。右肾107MM×50MM×46MM，肾盂分离（－）。两侧输尿管未见明显扩张。两侧肾下腺区未见明显肿块回声。CDFI示肝胆胰肾血流正常。</t>
   </si>
   <si>
-    <t>肺癌放化疗后，左上肺不张较前复张。左肺上叶后基底段肿块，较前增大。左肺上叶后基底段结节，考虑转移瘤，较前增大。左中肺节段性肺不张。左下肺新发条片影，考虑炎症可能大。右上肺后基底段少许炎症。两肺肺气肿。左胸腔积液较前减少；左侧少量气胸。肺癌放化疗后，对比2017-03-08CT片：左上肺较前复张。左肺上叶后基底段（支气管开口近段）见一肿块，边界欠清，大小约34MM×30MM，分叶状，信号不均匀，DWI见斑片状高信号，增强扫描不均匀强化。左肺上叶后基底段另见2个结节，边界欠清，信号不均匀，DWI见斑片状高信号，大者大小约31MM×19MM，不均匀轻度强化，较前增大。左中肺部分肺不张。左侧胸腔见少量积液并少量气胸。左下肺见条片状异常信号影，DWI稍等信号，增强扫描较明显强化，较前新发。右上肺基底段见少许斑片状影。两肺肺气肿。左肺上叶支气管分支变窄中断，气管及余支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。右侧胸腔未见积液。心包未见积液。扫描范围未见明确骨质破坏征象。</t>
+    <t>肺癌放化疗后，_x0004_左上肺不张较前复张。左肺上叶后基底段肿块，较前增大。_x0004_左肺上叶后基底段结节，考虑转移瘤，较前增大。_x0004_左中肺节段性肺不张。_x0004_左下肺新发条片影，考虑炎症可能大。右上肺后基底段少许炎症。_x0004_两肺肺气肿。_x0004_左胸腔积液较前减少；左侧少量气胸。_x0004_肺癌放化疗后，对比2017-03-08CT片：_x0004_左上肺较前复张。左肺上叶后基底段（支气管开口近段）见一肿块，边界欠清，大小约34MM×30MM，分叶状，信号不均匀，DWI见斑片状高信号，增强扫描不均匀强化。_x0004_左肺上叶后基底段另见2个结节，边界欠清，信号不均匀，DWI见斑片状高信号，大者大小约31MM×19MM，不均匀轻度强化，较前增大。_x0004_左中肺部分肺不张。左侧胸腔见少量积液并少量气胸。_x0004_左下肺见条片状异常信号影，DWI稍等信号，增强扫描较明显强化，较前新发。右上肺基底段见少许斑片状影。两肺肺气肿。_x0004_左肺上叶支气管分支变窄中断，气管及余支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。右侧胸腔未见积液。心包未见积液。_x0004_扫描范围未见明确骨质破坏征象。</t>
   </si>
   <si>
     <t>肺,肺</t>
@@ -4541,10 +4541,10 @@
     <t>肝脂肪浸润；右乳实质占位-考虑MT；两侧腋窝淋巴结肝肋上斜切97MM/（－），剑上纵切67MM/2指，肝区回声密集增强，门脉主干内径10MM，左支内径7MM，流速0.20MM/s，主干及右左支血流通畅，为向肝血流，流速曲线正常，脾门处脾静脉内径5MM，血流通畅。肝静脉血流通畅。脾肋间切30MM/（－）。左侧乳腺腺体萎缩，未见明显肿块回声。右侧乳腺腺体萎缩，11-1点钟处见24MM×12MM低回声不均质团块，形态不规则，内见数枚1MM点状强回声，CDFI内见少量点线状彩色血流，RI0.81。CDFI示两侧乳腺腺体血流分布尚正常。两侧腋窝见数枚低回声区，左侧最大11MM×4MM，右侧最大16MM×5MM，两侧锁骨下未见明显肿块回声。CDFI未见异常血流。</t>
   </si>
   <si>
-    <t>SPECT/CT显像结合全身骨平面显像：未见明显肿瘤转移征象；左侧第8后肋陈旧性骨折灶放射性摄取较前略增浓；胸椎退行性变。显像方法：&lt;?xml：namespaceprefix=ons="urn：schemas-microsoft-com：office：office"/&gt;静脉注射99MMTc-MDP约3小时后，患者取仰卧位，ANT、POST位采集全身骨骼平面影像。全身骨骼平面显像完毕后，患者取仰卧位，SPECT/CT采集胸肋部断层影像，经计算机处理得到横断面、矢状面、冠状面影像。影像所见：全身骨骼显影清晰，放射性分布不均匀对称，与2016-11-17本院图像比较，左侧第8后肋病灶放射性摄取较前略增浓；颅骨“帽状”放射性摄取与前相仿，考虑为骨质疏松所致；余处骨骼未见明显放射性异常浓聚或稀疏缺损表现。　　SPECT/CT融合图像示左侧第8后肋局部骨皮质密度略增高、走形扭曲伴放射性浓聚，与2016-9-1本院图像比较，放射性摄取较前略增浓，其余两侧肋骨形态完整；胸腰椎顺列，生理曲度存在，部分椎体边缘及椎小关节轻度增生增生伴放射性略浓聚，与前片相仿；其余骨骼未见放射性异常浓聚或骨质破坏吸收征象。</t>
-  </si>
-  <si>
-    <t>心动过速心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号心功能正常心超声检测值：LA   26MM       AO     24MM        MV E-A 1.23MM/s     EF 82%LV   41MM       IVS    13MM                           FS 50% RA   25MM       LVPW   11MMRV   10MM       PA     18MM  二维及Ｍ型超声心动图特征：心率：110bpm，律齐。升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图未见异常。</t>
+    <t>SPECT/CT显像结合全身骨平面显像：未见明显肿瘤转移征象；左侧第8后肋陈旧性骨折灶放射性摄取较前略增浓；胸椎退行性变。显像方法：&lt;?xml:namespaceprefix=ons="urn:schemas-microsoft-com:office:office"/&gt;静脉注射99MMTc-MDP约3小时后，患者取仰卧位，ANT、POST位采集全身骨骼平面影像。全身骨骼平面显像完毕后，患者取仰卧位，SPECT/CT采集胸肋部断层影像，经计算机处理得到横断面、矢状面、冠状面影像。影像所见：全身骨骼显影清晰，放射性分布不均匀对称，与2016-11-17本院图像比较，左侧第8后肋病灶放射性摄取较前略增浓；颅骨“帽状”放射性摄取与前相仿，考虑为骨质疏松所致；余处骨骼未见明显放射性异常浓聚或稀疏缺损表现。　　SPECT/CT融合图像示左侧第8后肋局部骨皮质密度略增高、走形扭曲伴放射性浓聚，与2016-9-1本院图像比较，放射性摄取较前略增浓，其余两侧肋骨形态完整；胸腰椎顺列，生理曲度存在，部分椎体边缘及椎小关节轻度增生增生伴放射性略浓聚，与前片相仿；其余骨骼未见放射性异常浓聚或骨质破坏吸收征象。</t>
+  </si>
+  <si>
+    <t>心动过速_x0004__x0004_心脏结构及运动未见异常_x0004__x0004_各房室腔及大血管未探及异常血流信号_x0004__x0004_心功能正常心超声检测值：_x0004__x0004_LA   26MMAO     24MMV E-A 1.23MM/s     EF 82%_x0004__x0004_LV   41MMIVS    13MMFS 50% _x0004__x0004_RA   25mm       LVPW   11MM_x0004__x0004_RV   10MMPA     18MM_x0004__x0004__x0004__x0004_二维及Ｍ型超声心动图特征：_x0004__x0004_心率：110bpm，律齐。_x0004__x0004_升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；_x0004__x0004_各房室腔径正常。_x0004__x0004_室壁厚度及运动正常。房、室间隔连续性完好。_x0004__x0004_各组瓣膜形态、结构及运动正常。_x0004__x0004_心包及心包腔未见异常。_x0004__x0004_彩色及频谱多普勒超声心动图未见异常。</t>
   </si>
   <si>
     <t>左下肺癌多发转移综合治疗后：左肺下叶术后缺如。两肺上叶前基底段胸膜上病灶，考虑纤维增殖灶可能性大，建议复查。纵隔及两肺门多个淋巴结，转移瘤？两侧肾下腺病灶，考虑转移瘤。胸12椎体病灶，考虑转移瘤可能性大。肝囊肿。右肾高密度结节，考虑复杂囊肿可能性大。两肾囊肿。左下肺癌多发转移综合治疗后：甲状腺峡部增大，见一稍低密度灶，边界清，大小约14MM×13MM，不均匀强化。左肺下叶术后缺如。余两肺纹理清晰，两肺上叶前基底段胸膜上见类结节影及少许条索影，边界清。气管及其余支气管分支通畅。主动脉旁、两上气管旁、隆突上及两肺门见多个淋巴结，边界清，较大者短径约9MM，均匀强化。两侧腋窝未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内散在数个类圆形稍低密度灶，边界清，较大者大小约16MM×15MM，未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。左侧肾下腺明显增粗，最厚处约11MM，不均匀强化，右侧肾下腺见一结节，直径约12MM，明显强化。右肾见一稍高密度灶，边界清，大小约15MM×10MM，增强扫描强化不明显。两肾见多个稍低密度灶，边界清，较大者直径约28MM，未见强化。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。子宫内见节育器，宫颈大小、形态未见异常。直肠未见明显异常。两侧髂血管旁、腹股沟未见肿大淋巴结。胸12椎体见团块状骨质密度增高影。</t>
@@ -4553,7 +4553,7 @@
     <t>纵隔及两肺门多个淋巴结,两侧肾下腺,胸12椎体</t>
   </si>
   <si>
-    <t>肺癌放化疗后复查，对比2012-7-16CT：左上肺中央型肺癌并左上肺不张，范围较前缩小。两肺小结节，较前未见明显变化。左肺散在病灶，考虑炎症，较前无明显变化。右锁骨下窝、纵隔及左肺门多发淋巴结，较前未见明显变化。左侧胸腔少量积液，较前减少。甲状腺左叶病灶，考虑结节性甲状腺肿可能性大。下腹部未见占位性病变。胸10椎体稍高密度影，大致同前，可疑转移瘤。肺癌放化疗后复查，对比2012-7-16CT：左肺上叶支气管截断，左上肺不张，较前好转；近肺门区见团块状软组织肿物，边界不清，与不张肺组织分界不清，肿物范围较前缩小。左中下肺代偿尚可，肺内见边界不清的片状影，范围较前无明显变化。余两肺各叶见多个粟粒样小结节，孤立散在，最大者直径约4MM，边界尚清，较前未见明显变化。右上肺见一小致密影。右侧锁骨下窝、最下纵隔、左下上气管旁、主肺动脉窗、主动脉旁、隆突上及左肺门见多个大小不等的淋巴结，部分边界不清，最大约13MM×19MM，较前未见明显变化。左侧胸腔少量积液，右侧胸腔未见积液。两侧胸膜稍增厚。扫描范围甲状腺左叶见小结节状低密度影，大小约为5MM×6MM，边界欠清，增强后轻度强化。肝脏形态、大小未见异常，轮廓光整，肝内未见异常密度灶。肝内外胆管无扩张，内未见异常密度灶。胆囊不大，壁不厚，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾不大，密度均匀。胰腺形态、大小及密度未见异常。所示两肾及肾下腺未见异常。腹主动脉旁、膈脚后未见肿大淋巴结。胸10椎体右侧份见一类圆形稍高密度影，边界不清，直径8MM，余扫描范围未见明显骨质破坏。</t>
+    <t>肺癌放化疗后复查，对比2012-7-16CT:左上肺中央型肺癌并左上肺不张，范围较前缩小。两肺小结节，较前未见明显变化。左肺散在病灶，考虑炎症，较前无明显变化。右锁骨下窝、纵隔及左肺门多发淋巴结，较前未见明显变化。左侧胸腔少量积液，较前减少。甲状腺左叶病灶，考虑结节性甲状腺肿可能性大。下腹部未见占位性病变。胸10椎体稍高密度影，大致同前，可疑转移瘤。肺癌放化疗后复查，对比2012-7-16CT:左肺上叶支气管截断，左上肺不张，较前好转；近肺门区见团块状软组织肿物，边界不清，与不张肺组织分界不清，肿物范围较前缩小。左中下肺代偿尚可，肺内见边界不清的片状影，范围较前无明显变化。余两肺各叶见多个粟粒样小结节，孤立散在，最大者直径约4MM，边界尚清，较前未见明显变化。右上肺见一小致密影。右侧锁骨下窝、最下纵隔、左下上气管旁、主肺动脉窗、主动脉旁、隆突上及左肺门见多个大小不等的淋巴结，部分边界不清，最大约13MM×19MM，较前未见明显变化。左侧胸腔少量积液，右侧胸腔未见积液。两侧胸膜稍增厚。扫描范围甲状腺左叶见小结节状低密度影，大小约为5MM×6MM，边界欠清，增强后轻度强化。肝脏形态、大小未见异常，轮廓光整，肝内未见异常密度灶。肝内外胆管无扩张，内未见异常密度灶。胆囊不大，壁不厚，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾不大，密度均匀。胰腺形态、大小及密度未见异常。所示两肾及肾下腺未见异常。腹主动脉旁、膈脚后未见肿大淋巴结。胸10椎体右侧份见一类圆形稍高密度影，边界不清，直径8MM，余扫描范围未见明显骨质破坏。</t>
   </si>
   <si>
     <t>胸10椎体</t>
@@ -4577,22 +4577,22 @@
     <t>肝S4,S7,肺</t>
   </si>
   <si>
-    <t>左下肺癌多发转移化疗后复查：左肺下叶肿物，较前稍缩小。原两肺散在小类结节影现未见显示。纵隔小淋巴结，较前相仿。左侧胸膜散在小结节状增厚，较前相仿。多发骨病变，考虑转移瘤，骨质密度较前增高。甲状腺右叶病变、右侧食管气管旁沟结节，考虑胸骨后甲状腺并结节性甲状腺肿可能性大，大致同前。肝多发囊肿，较前相仿。左下肺癌多发转移化疗后，对比2017.02.25片：左肺下叶近肺门区见软组织肿块，边缘不规则，可见分叶及短毛刺，范围约18MM×16MM，密度欠均匀，增强扫描均匀明显强化，范围较前稍缩小；包绕左肺下叶支气管及部分分支，管腔部分狭窄；邻近肺组织见斑片状、条片状高密度影，边界模糊，范围较前相仿。原肺门类结节灶现未见显示。左上气管旁见小淋巴结，边界清，短径约4MM，增强后轻度强化。两侧胸腔未见积液。左侧叶间胸膜及肋胸膜见散在小结节状增厚（Se5Im42、50），增强后强化，较前相仿。甲状腺两侧叶明显增大，密度不均匀，部分突入纵隔，内可见多发低密度灶，大者大小约15MM×14MM，不均匀强化；右侧气管食管旁沟见一结节，大小约25MM×18MM，密度不均匀，增强后局部强化与甲状腺组织相仿，下缘与甲状腺右叶分界不清。肝内见多个低密度影，边界光滑，增强扫描各期未见强化，最大位于S6/7，大小约35MM×25MM。胸骨柄、胸9、11、12椎体及两侧多根肋骨骨质见多发骨质密度减低及增高影，边界不清。</t>
-  </si>
-  <si>
-    <t>1.结合病史，考虑为左肺上叶MT伴左侧肺门淋巴结转移；双肺慢性炎症；2.甲状腺密度不均匀伴右叶钙化灶，请随访超声检查；3.肝脏钙化灶；肝脏、右肾囊肿。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。筛窦粘膜增厚，考虑为慢性炎症；两侧额窦、下颌窦、蝶窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺密度不均，右叶见钙化灶。胸部PET/CT图像示两肺纹理清晰，左肺上叶背段及基底段见糖代谢异常增高的肿块影，大小约为66.7MM×44.2MM，最大SUV值为11.1，呈分叶状，边缘见毛刺；双肺另见散在无糖代谢异常增高的条索影；左肺门见糖代谢异常增高的肿大淋巴结，大小约为28.6MM×23.3MM，最大SUV值为11.7；纵隔及右侧肺门无明显糖代谢异常增高及肿大淋巴结；两侧胸膜无增厚；两侧胸腔无积液；心脏无明显增大；两侧腋窝无糖代谢异常增高及肿大淋巴结；两侧乳腺无糖代谢异常增高及占位。腹部PET/CT图像示肝脏表面光整，各叶比例匀称，右叶见局灶性糖代谢增高灶，未见明显占位，早期相最大SUV值为4.2，延迟1.0小时后该糖代谢增高灶消失，考虑为生理性表现；肝脏实质内另见数枚无糖代谢异常增高的囊性低密度灶，最大者大小约为27.8MM×20.6MM，肝脏内另见钙化灶；肝内外胆管无扩张；胃壁呈糖代谢生理性增强；肠道呈生理性糖代谢增强；右肾见大小约为44.5MM×32.8MM、无糖代谢异常增高的低密度灶；脾脏、胆囊、胰、左肾、两肾下腺无殊；腹膜后无糖代谢异常增高及肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈生理性糖代谢增强；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁光滑无增厚；子宫和两附件区未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见糖代谢异常增高。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示部分颈、胸、腰、骶椎体边缘及椎小关节骨质增生，考虑为退行性变。</t>
+    <t>左下肺癌多发转移化疗后复查：_x0004_左肺下叶肿物，较前稍缩小。_x0004_原两肺散在小类结节影现未见显示。_x0004_纵隔小淋巴结，较前相仿。_x0004_左侧胸膜散在小结节状增厚，较前相仿。_x0004_多发骨病变，考虑转移瘤，骨质密度较前增高。_x0004_甲状腺右叶病变、右侧食管气管旁沟结节，考虑胸骨后甲状腺并结节性甲状腺肿可能性大，大致同前。肝多发囊肿，较前相仿。左下肺癌多发转移化疗后，对比2017.02.25片：_x0004_左肺下叶近肺门区见软组织肿块，边缘不规则，可见分叶及短毛刺，范围约18MM×16MM，密度欠均匀，增强扫描均匀明显强化，范围较前稍缩小；包绕左肺下叶支气管及部分分支，管腔部分狭窄；邻近肺组织见斑片状、条片状高密度影，边界模糊，范围较前相仿。原肺门类结节灶现未见显示。_x0004_左上气管旁见小淋巴结，边界清，短径约4MM，增强后轻度强化。_x0004_两侧胸腔未见积液。左侧叶间胸膜及肋胸膜见散在小结节状增厚（Se5Im42、50），增强后强化，较前相仿。_x0004_甲状腺两侧叶明显增大，密度不均匀，部分突入纵隔，内可见多发低密度灶，大者大小约15MM×14MM，不均匀强化；右侧气管食管旁沟见一结节，大小约25MM×18MM，密度不均匀，增强后局部强化与甲状腺组织相仿，下缘与甲状腺右叶分界不清。_x0004_肝内见多个低密度影，边界光滑，增强扫描各期未见强化，最大位于S6/7，大小约35MM×25MM。_x0004_胸骨柄、胸9、11、12椎体及两侧多根肋骨骨质见多发骨质密度减低及增高影，边界不清。</t>
+  </si>
+  <si>
+    <t>1.结合病史，考虑为左肺上叶MT伴左侧肺门淋巴结转移；双肺慢性炎症；_x0004_2.甲状腺密度不均匀伴右叶钙化灶，请随访超声检查；_x0004_3.肝脏钙化灶；肝脏、右肾囊肿。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。筛窦粘膜增厚，考虑为慢性炎症；两侧额窦、下颌窦、蝶窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺密度不均，右叶见钙化灶。胸部PET/CT图像示两肺纹理清晰，左肺上叶背段及基底段见糖代谢异常增高的肿块影，大小约为66.7MM×44.2MM，最大SUV值为11.1，呈分叶状，边缘见毛刺；双肺另见散在无糖代谢异常增高的条索影；左肺门见糖代谢异常增高的肿大淋巴结，大小约为28.6MM×23.3MM，最大SUV值为11.7；纵隔及右侧肺门无明显糖代谢异常增高及肿大淋巴结；两侧胸膜无增厚；两侧胸腔无积液；心脏无明显增大；两侧腋窝无糖代谢异常增高及肿大淋巴结；两侧乳腺无糖代谢异常增高及占位。腹部PET/CT图像示肝脏表面光整，各叶比例匀称，右叶见局灶性糖代谢增高灶，未见明显占位，早期相最大SUV值为4.2，延迟1.0小时后该糖代谢增高灶消失，考虑为生理性表现；肝脏实质内另见数枚无糖代谢异常增高的囊性低密度灶，最大者大小约为27.8MM×20.6MM，肝脏内另见钙化灶；肝内外胆管无扩张；胃壁呈糖代谢生理性增强；肠道呈生理性糖代谢增强；右肾见大小约为44.5MM×32.8MM、无糖代谢异常增高的低密度灶；脾脏、胆囊、胰、左肾、两肾下腺无殊；腹膜后无糖代谢异常增高及肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈生理性糖代谢增强；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁光滑无增厚；子宫和两附件区未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见糖代谢异常增高。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示部分颈、胸、腰、骶椎体边缘及椎小关节骨质增生，考虑为退行性变。</t>
   </si>
   <si>
     <t>66.7MM×44.2MM</t>
   </si>
   <si>
-    <t>少量心包积液心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号心功能正常心超声检测值：LA   23MM       AO    21MM        MV E 0.80MM/s     EF 77%LV   43MM       IVS    7MM           A 0.68MM/s     FS 45% RA   33MM       LVPW   7MMRV   17MM       PA    22MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。左室前方可探及少量液性暗区，深度约15MM。彩色及频谱多普勒超声心动图未见异常。</t>
-  </si>
-  <si>
-    <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，34，20-37，右房内径，38，19-40，右室舒张末内径，41，35-56，右室收缩末内径，29，23-35，室间隔厚度，8，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒测及轻微主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约38MMHg，。，三、，右心功能测定：，LVEF：65%；，二尖瓣血流图示E/A，&amp;lt；，1；DT：127MMs，四、组织多普勒测定：，DTI示S波峰值：20.6CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
-  </si>
-  <si>
-    <t>右下肺癌切除术后未见明显复发。右下胸纵隔旁及小主动脉旁少量包裹性积液，未见明显变化。左肺中叶小斑片灶，未见明显变化，考虑增殖灶。甲状腺两叶结节，考虑结节性甲状腺肿，较前变化不明显。右侧腋上片絮灶，考虑术后改变。肝S6类圆形囊性病变，考虑肝囊肿，较前未见明显变化。右下肺根治术后，与2017.11.4片对比。右下肺叶切除术后缺失，支气管残端、右肺残留肺组织内未见软组织肿块。右下胸纵隔旁及小主动脉旁少量包裹性积液，未见明显变化。纵膈右移。左肺中叶小斑片灶，未见明显变化，密度前均匀，边界较清楚。两肺门及纵膈未见明显肿大淋巴结。甲状腺两叶见多发结节，边界清楚，最大者直径约6MM，较前未见明显变化。右侧腋上片状稍高密度病变，密度均匀，边界较清楚。肝S6类圆形囊性病变，密度均匀，边界清晰，增强扫描未见明显强化，大小约25MM×36MM，较2017.7.26片未见明显变化。肝内胆管未见明显异常，胆囊未见明显扩张，胆总管未见扩张。肝门区未见明显异常。门静脉未见明显异常。脾大小未见明显异常，密度均匀。胰腺大小、形态未见明显异常，密度均匀。两肾未见明显异常。两肾下腺未见明显异常。腹膜后、肠系膜根部未见肿大淋巴结。</t>
+    <t>少量心包积液_x0004__x0004_心脏结构及运动未见异常_x0004__x0004_各房室腔及大血管未探及异常血流信号_x0004__x0004_心功能正常_x0004__x0004_心超声检测值：_x0004__x0004_LA   23MMAO    21MMV E 0.80m/s     EF 77%_x0004__x0004_LV   43MMIVS    7MMA 0.68m/s     FS 45% _x0004__x0004_RA   33MMLVPW   7MM_x0004__x0004_RV   17MMPA    22MM_x0004__x0004__x0004__x0004_二维及Ｍ型超声心动图特征：_x0004__x0004_升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；_x0004__x0004_各房室腔径正常。_x0004__x0004_室壁厚度及运动正常。房、室间隔连续性完好。_x0004__x0004_各组瓣膜形态、结构及运动正常。_x0004__x0004_左室前方可探及少量液性暗区，深度约15MM。_x0004__x0004_彩色及频谱多普勒超声心动图未见异常。</t>
+  </si>
+  <si>
+    <t>静息状态上超声心动图未见异常常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,34,20-37,右房内径,38,19-40,右室舒张末内径,41,35-56,右室收缩末内径,29,23-35,室间隔厚度,8,6-11,右室后壁厚度,8,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。,3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒测及轻微主动脉瓣反流。,4、左房室不大，肺动脉不增宽，,连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约38MMHg,。,三、,右心功能测定：,LVEF：65%;,二尖瓣血流图示E/A,&amp;lt;,1;DT:127MMs,四、组织多普勒测定：,DTI示S波峰值:20.6CM/s;E'/A',&amp;lt;,1,五、结论：,</t>
+  </si>
+  <si>
+    <t>右下肺癌切除术后未见明显复发。_x0004_右下胸纵隔旁及小主动脉旁少量包裹性积液，未见明显变化。_x0004_左肺中叶小斑片灶，未见明显变化，考虑增殖灶。_x0004_甲状腺两叶结节，考虑结节性甲状腺肿，较前变化不明显。_x0004_右侧腋上片絮灶，考虑术后改变。_x0004_肝S6类圆形囊性病变，考虑肝囊肿，较前未见明显变化。_x0004_右下肺根治术后，与2017.11.4片对比。_x0004_右下肺叶切除术后缺失，支气管残端、右肺残留肺组织内未见软组织肿块。_x0004_右下胸纵隔旁及小主动脉旁少量包裹性积液，未见明显变化。_x0004_纵膈右移。_x0004_左肺中叶小斑片灶，未见明显变化，密度前均匀，边界较清楚。_x0004_两肺门及纵膈未见明显肿大淋巴结。_x0004_甲状腺两叶见多发结节，边界清楚，最大者直径约6MM，较前未见明显变化。_x0004_右侧腋上片状稍高密度病变，密度均匀，边界较清楚。_x0004_肝S6类圆形囊性病变，密度均匀，边界清晰，增强扫描未见明显强化，大小约25MM×36MM，较2017.7.26片未见明显变化。_x0004_肝内胆管未见明显异常，胆囊未见明显扩张，胆总管未见扩张。_x0004_肝门区未见明显异常。门静脉未见明显异常。_x0004_脾大小未见明显异常，密度均匀。胰腺大小、形态未见明显异常，密度均匀。_x0004_两肾未见明显异常。两肾下腺未见明显异常。_x0004_腹膜后、肠系膜根部未见肿大淋巴结。</t>
   </si>
   <si>
     <t>左下中肺癌术后复查，较2013-7-16片对比：左肺癌术后改变，未见明确复发征象。右下肺多发肺大泡。纵隔小淋巴结。左侧胸腔积液较前吸收。肝多发囊肿。左侧第6后肋呈术后改变。左下中肺癌术后复查，较2013-7-16片对比：左侧胸廓稍缩小，纵隔结构轻度向左侧移位。两肺纹理稍增粗，右肺下叶见多个散在分布的大小不等的空腔影，壁薄。余肺野未见明确病变。气管和支气管分支通畅。两上气管旁、主肺动脉窗内见小淋巴结，大者约8MM×6MM，密度均匀。两侧肺门未见明显肿大淋巴结。左侧胸腔积液较前吸收，现两侧胸腔未见积液。左侧胸膜局灶性增厚。左侧第6后肋呈术后改变，余所见骨质结构未见异常。肝脏大小形态正常，各叶比例在正常范围内，轮廓光整，密度不均匀，肝内见多个低密度灶，边界清楚，短径约3MM~21MM，增强扫描未见明显强化。肝内外胆管未见扩张，胆囊不大，壁不厚，内未见结石影。肝门区正常，门静脉所见正常。脾脏不大密度均匀；胰腺大小形态及密度未见异常。两肾及肾下腺区未见异常。肝门区和腹膜后未见肿大淋巴结。</t>
@@ -4616,7 +4616,7 @@
     <t>左腋区淋巴结</t>
   </si>
   <si>
-    <t>肺MT伴多处淋巴结转移综合治疗后病例，与2016-8-31本院PET/CT图像比较：1.右侧颈根部、两侧锁骨区、纵隔及右肺门病变淋巴结均较前缩小、不伴糖代谢异常增高；2.双肺放射性炎症；3.左侧第12后肋陈旧性骨折；原左侧外耳道糖代谢增高灶消失；余同前相仿。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行PET/CT断层显像，与2016-8-31本院PET/CT图像比较。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部及鼻咽部PET/CT图像示眼球、眼眶内、鼻咽部及咽旁间隙未见明显糖代谢异常或占位。原左侧外耳道局部糖代谢增高灶基本消失。右下颌窦粘膜略增厚，不伴糖代谢异常增高，考虑为慢性炎症；余副鼻窦无殊。颈部PET/CT图像示右侧颈根部及两侧锁骨区不伴糖代谢异常增高的小淋巴结，较前进一步缩小，原右颈根部淋巴结大小约为5.2MM×2.6MM，原左侧锁骨区淋巴结大小约为4.2MM×2.6MM；口咽、喉咽部和甲状腺无殊。胸部PET/CT图像示右肺下叶尖后段主动脉弓旁未见明显糖代谢异常增高灶或占位；左肺野内多发不伴明显糖代谢增高的小结节，直径均小于3.0MM，与前相仿；纵隔及肺门周围肺组织见多发斑片模糊影，部分伴糖代谢增高，最大SUV值约为2.3；纵隔及右肺门见不伴糖代谢异常增高的小淋巴结，纵隔内淋巴结较大者位于主动脉窗，直径约为6.5MM，右肺门淋巴结直径约为3.3MM，较前缩小；左肺门及两侧腋窝未见糖代谢异常增高或肿大淋巴结；两侧胸腔无积液；心脏无明显增大。腹部PET图像示胃壁糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内见直径为3.0MM的囊性灶，与前相仿；肝内外胆管无扩张；脾周见副脾结节影；脾脏不大，密度均，未见明显占位；右肾下极见直径为47.8MM的囊性灶，左肾中部见一直径约为6.5MM囊性灶，均与前相仿；右侧肾下腺局部增粗，见一直径约为6.0MM稍低密度灶，与前相仿；胆囊、胰、左肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈可；前列腺增大，密度尚均匀；两侧精囊腺无殊；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示原左侧第12后肋骨糖代谢增高灶消失，骨皮质欠连续；余所示诸骨未见明显糖代谢异常增高灶或骨质破坏。</t>
+    <t>肺MT伴多处淋巴结转移综合治疗后病例，与2016-8-31本院PET/CT图像比较：_x0004_1.右侧颈根部、两侧锁骨区、纵隔及右肺门病变淋巴结均较前缩小、不伴糖代谢异常增高；_x0004_2.双肺放射性炎症；_x0004_3.左侧第12后肋陈旧性骨折；原左侧外耳道糖代谢增高灶消失；余同前相仿。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行PET/CT断层显像，与2016-8-31本院PET/CT图像比较。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部及鼻咽部PET/CT图像示眼球、眼眶内、鼻咽部及咽旁间隙未见明显糖代谢异常或占位。原左侧外耳道局部糖代谢增高灶基本消失。右下颌窦粘膜略增厚，不伴糖代谢异常增高，考虑为慢性炎症；余副鼻窦无殊。颈部PET/CT图像示右侧颈根部及两侧锁骨区不伴糖代谢异常增高的小淋巴结，较前进一步缩小，原右颈根部淋巴结大小约为5.2MM×2.6MM，原左侧锁骨区淋巴结大小约为4.2MM×2.6MM；口咽、喉咽部和甲状腺无殊。胸部PET/CT图像示右肺下叶尖后段主动脉弓旁未见明显糖代谢异常增高灶或占位；左肺野内多发不伴明显糖代谢增高的小结节，直径均小于3.0MM，与前相仿；纵隔及肺门周围肺组织见多发斑片模糊影，部分伴糖代谢增高，最大SUV值约为2.3；纵隔及右肺门见不伴糖代谢异常增高的小淋巴结，纵隔内淋巴结较大者位于主动脉窗，直径约为6.5MM，右肺门淋巴结直径约为3.3MM，较前缩小；左肺门及两侧腋窝未见糖代谢异常增高或肿大淋巴结；两侧胸腔无积液；心脏无明显增大。腹部PET图像示胃壁糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内见直径为3.0MM的囊性灶，与前相仿；肝内外胆管无扩张；脾周见副脾结节影；脾脏不大，密度均，未见明显占位；右肾下极见直径为47.8MM的囊性灶，左肾中部见一直径约为6.5MM囊性灶，均与前相仿；右侧肾下腺局部增粗，见一直径约为6.0MM稍低密度灶，与前相仿；胆囊、胰、左肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈可；前列腺增大，密度尚均匀；两侧精囊腺无殊；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示原左侧第12后肋骨糖代谢增高灶消失，骨皮质欠连续；余所示诸骨未见明显糖代谢异常增高灶或骨质破坏。</t>
   </si>
   <si>
     <t>右侧颈根部,两侧锁骨区,纵隔及右肺门病变淋巴结</t>
@@ -4631,7 +4631,7 @@
     <t>18MM×23MM</t>
   </si>
   <si>
-    <t>右肺上叶病灶，考虑肺癌并阻塞性肺炎可能性大。两肺多发小结节，考虑转移瘤。左侧锁骨下区、纵隔多发淋巴结，考虑转移。心包积液。肝囊肿。左肾小囊肿。右肺上叶见不规则肿块，边界不清，最大层面大小约54MM×34MM，边缘呈分叶状，增强扫描不均匀强化，紧贴斜裂胸膜及纵隔胸膜，右上肺见斑片状稍高密度影，边界不清。两肺散在多发小结节，边界清，大者直径5MM，可见强化。右肺上叶前内基底段支气管变窄，基底段支气管分支管壁增厚，气管及其余支气管分支通畅。左侧锁骨下区、两下上气管旁、血管前、主动脉弓旁、主肺动脉窗、隆突上见多发淋巴结，部分相互融合，大者短径约14MM，不均匀强化，内可见坏死区。两侧胸腔未见积液，左侧胸膜未见明显增厚。心包见弧形积液。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内见多个低密度灶，边界清，大者直径约9MM，未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。左肾见低密度灶，边界清，大小约5MM×3MM，未见强化。右肾及两肾下腺未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。扫描范围未见骨质破坏征象。</t>
+    <t>右肺上叶病灶，考虑肺癌并阻塞性肺炎可能性大。_x0004_两肺多发小结节，考虑转移瘤。_x0004_左侧锁骨下区、纵隔多发淋巴结，考虑转移。_x0004_心包积液。_x0004_肝囊肿。_x0004_左肾小囊肿。右肺上叶见不规则肿块，边界不清，最大层面大小约54MM×34MM，边缘呈分叶状，增强扫描不均匀强化，紧贴斜裂胸膜及纵隔胸膜，右上肺见斑片状稍高密度影，边界不清。两肺散在多发小结节，边界清，大者直径5MM，可见强化。_x0004_右肺上叶前内基底段支气管变窄，基底段支气管分支管壁增厚，气管及其余支气管分支通畅。_x0004_左侧锁骨下区、两下上气管旁、血管前、主动脉弓旁、主肺动脉窗、隆突上见多发淋巴结，部分相互融合，大者短径约14MM，不均匀强化，内可见坏死区。_x0004_两侧胸腔未见积液，左侧胸膜未见明显增厚。心包见弧形积液。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内见多个低密度灶，边界清，大者直径约9MM，未见强化。_x0004_肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉未见异常。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。_x0004_左肾见低密度灶，边界清，大小约5MM×3MM，未见强化。_x0004_右肾及两肾下腺未见异常。_x0004_膈脚后、腹主动脉旁未见肿大淋巴结。_x0004_扫描范围未见骨质破坏征象。</t>
   </si>
   <si>
     <t>54MM×34MM</t>
@@ -4646,7 +4646,7 @@
     <t>右心增大二尖瓣关闭不全（轻-中度）三尖瓣少量返流心室舒张功能减低心包腔少-中量积液升主动脉31MM。瓣开17MM。右房前后径40MM。室间隔：9MM，右室前后径：51MM，右室后壁：8MM。左室径：22MM。右室收缩功能：射血分数（EF）57%肺动脉瓣：V：1.1MM/s。三尖瓣：E/A：0.4/0.5MM/s；反向：2.2MM/s，P：20MMHg。二尖瓣：E/A：1.1/0.9MM/s；反向：5.1MM/s，P：103MMHg。e'：5.9CM/s，E/e'=18.6。主动脉瓣：V：0.8MM/s。右心增大；左心大小形态正常，室间隔及右室后壁厚度正常，运动协调反向。静息状态上未见节段性室壁运动障碍。各瓣膜形态结构正常。右室收缩运动及收缩功能正常。心室舒张功能减低。心包腔可见少-中量积液，舒张期液体厚度：前心包0.7CM、后心包1.1CM。检查过程中偶见心律不齐。</t>
   </si>
   <si>
-    <t>考虑左肺下叶中央型肺癌并左下肺节段性不张、左下肺阻塞性炎症可能性大，建议纤支镜进一步检查。左肺门小淋巴结，性质待定。脂肪肝。肝S4稍低密度病灶，性质待定，肝囊肿？肝转移瘤？建议MR进一步检查。两肾盂小结石。右肾盂旁囊肿。左肺下叶支气管狭窄，左肺下叶近肺门区见边界不清的软组织影，包绕左肺下叶支气管，与左下肺不张肺组织分界不清，病灶内密度欠均匀，增强后不均匀强化，病灶远侧见大片状实变影。余两肺纹理清晰，肺内未见实质性病变。气管及余支气管分支通畅。左肺门区见一淋巴结，大小约为8MM×9MM。右肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜无增厚、粘连。扫描层次中胸椎、胸壁骨及软组织未见异常。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S4见一稍低密度病灶，大小约为7MM×11MM，边界不清，增强后未见明显强化。余肝实质未见明显异常密度灶，增强扫描未见异常强化影。肝脏密度普遍减低，低于脾脏密度。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾盂各见一斑点状致密影，右肾盂旁见一囊性灶，大小约为13MM×14MM，边界清楚，增强后未见强化，右侧肾盂稍受压。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。所见骨质未见明显破坏征象。</t>
+    <t>考虑左肺下叶中央型肺癌并左下肺节段性不张、左下肺阻塞性炎症可能性大，建议纤支镜进一步检查。_x0004_左肺门小淋巴结，性质待定。_x0004_脂肪肝。_x0004_肝S4稍低密度病灶，性质待定，肝囊肿？肝转移瘤？建议MR进一步检查。_x0004_两肾盂小结石。右肾盂旁囊肿。左肺下叶支气管狭窄，左肺下叶近肺门区见边界不清的软组织影，包绕左肺下叶支气管，与左下肺不张肺组织分界不清，病灶内密度欠均匀，增强后不均匀强化，病灶远侧见大片状实变影。余两肺纹理清晰，肺内未见实质性病变。气管及余支气管分支通畅。左肺门区见一淋巴结，大小约为8MM×9MM。右肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜无增厚、粘连。扫描层次中胸椎、胸壁骨及软组织未见异常。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S4见一稍低密度病灶，大小约为7MM×11MM，边界不清，增强后未见明显强化。余肝实质未见明显异常密度灶，增强扫描未见异常强化影。肝脏密度普遍减低，低于脾脏密度。_x0004_肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾盂各见一斑点状致密影，右肾盂旁见一囊性灶，大小约为13MM×14MM，边界清楚，增强后未见强化，右侧肾盂稍受压。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。所见骨质未见明显破坏征象。</t>
   </si>
   <si>
     <t>左肺上叶肺癌化疗后，与2014-08-19对比：左上肺叶病灶，较前范围稍增大。纵隔、左肺门淋巴结，未见明显变化。肝囊肿。左肾囊肿。胸7、8、12、腰2、左侧第3后肋病变，较前变化不大。左肺上叶肺癌化疗后：左上肺叶背段见一不规则形软组织密度灶，大小约24MM×19MM，呈分叶状，见短毛刺，其内密度欠均匀，增强扫描不均匀强化，病灶以远肺组织内见条片状密度增高影，邻近斜裂受牵拉。余肺纹理清晰，未见明确病变；气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。左侧肺门见稍大淋巴结，大小约为8MM×7MM，增强扫描轻度强化，左侧上气管旁、隆突上见多个小淋巴结，大的短径约5MM，轻度强化。两侧胸腔未见积液。右侧胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝S4、S7、S7见数个小囊性低密度灶，最大者约15MM×14MM，边界清楚，密度均匀，增强后未见强化；肝内胆管正常，胆囊大小正常，其内未见结石影，胆总管未见扩张；肝门区正常；门静脉所见正常。脾大小正常，密度均匀；胰腺大小、形态正常，密度均匀。左肾见2个囊性病灶，大的约53MM×46MM，边界清楚，增强后未见强化。右肾所见正常；两肾下腺所见正常。膈脚后、腹主动脉旁未见肿大淋巴结。腹腔未见积液。胸7、8、12、腰2椎体见骨质破坏区，周围见硬化边。左侧第3后肋骨松质见条片状高密度灶，边界模糊。</t>
@@ -4655,7 +4655,7 @@
     <t>24MM×19MM</t>
   </si>
   <si>
-    <t>心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号心功能正常心超声检测值：LA 35  mm       AO  30   mm        MV E 1.32MM/s     EF 67%LV 53  mm       IVS 8    mm           A 1.31MM/s     FS 36% RA 34  mm       LVPW 11  mmRV 16  mm       PA  19   mm  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图未见异常。</t>
+    <t>心脏结构及运动未见异常_x0004__x0004_各房室腔及大血管未探及异常血流信号_x0004__x0004_心功能正常_x0004__x0004_心超声检测值：_x0004__x0004_LA 35MMAO  30   mm        MV E 1.32MM/s     EF 67%_x0004__x0004_LV 53MMIVS 8    mm           A 1.31MM/s     FS 36% _x0004__x0004_RA 34MMLVPW 11  mm_x0004__x0004_RV 16MMPA  19   mm  _x0004__x0004__x0004__x0004_二维及Ｍ型超声心动图特征：_x0004__x0004_升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；_x0004__x0004_各房室腔径正常。_x0004__x0004_室壁厚度及运动正常。房、室间隔连续性完好。_x0004__x0004_各组瓣膜形态、结构及运动正常。_x0004__x0004_心包及心包腔未见异常。_x0004__x0004_彩色及频谱多普勒超声心动图未见异常。</t>
   </si>
   <si>
     <t>淋巴瘤化疗后复查，与2010-5-4片对比：两颈、两侧腋窝、纵隔、腹腔内、腹膜后多发淋巴结肿大，较前增多、增大。肝S4结节状病灶，与前片对比，为新发病灶，考虑淋巴瘤浸润可能性大。肝S4血管瘤。右肾囊肿。两肺未见明显占位病变。淋巴瘤化疗后复查，与2010-5-4片对比：两颈I~V区、两侧腋窝、左侧上气管旁、主肺动脉窗、两肺门、肠系膜血管周围、肝门区、门腔间隙、腹腔干周围、腹主动脉旁可见多发肿大淋巴结，大小约5MM×6MM~27MM×29MM，淋巴结内未见明显坏死，与前片对比，较前增多、增大。甲状腺两叶及峡部形态正常，密度均匀，未见占位性病变。喉咽腔形态正常，两侧真假声带未见增厚，前联合未见增厚，梨状窝对称。两侧颌上腺大小、形态正常，密度均匀；两侧腮腺大小形态正常，密度均匀。两肺纹理清晰，未见结节影；气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。两侧胸腔未见积液；胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝S4可见结节状稍低密度灶，边界欠清楚，大小约18MM×24MM，增强后可见轻度强化。肝S4另可见小结节状稍低密度灶，边界清楚，大小约7MM×7MM，增强后动脉期、门脉期及延迟期均呈结节状明显强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常；门静脉所见正常。脾大小正常，密度均匀；胰腺大小、形态正常，密度均匀。右肾可见小囊性病灶，大小约6MM×6MM，边界清楚，未见强化，左肾所见正常；两肾下腺所见正常。</t>
@@ -4679,19 +4679,19 @@
     <t>右上肺癌术后2年复查，与2013-11-01片对比：左上肺新发病灶，考虑炎症可能。左肺中叶病灶，较前范围稍增大，考虑慢性炎症。右下肺叶前段、左肺散在类结节，考虑增殖灶可能性大，较前变化不大，建议随诊。右侧胸膜稍增厚，内可见多个结节，较前新发，抗炎治疗后复查。肝多发囊肿。右肾囊肿。右上肺癌术后2年复查，与2013-11-01片对比：右上肺叶术后缺如，右侧胸廓稍缩小，右残肺充气良好，左肺中叶纹理增粗、紊乱，见多发斑片影及条索影，边界欠清，较前稍增多。右肺见斑片状影，边界不清，局部肺纹理增多紊乱，右肺见少许斑片灶，边界欠清，同前变化不大。左肺上叶见多发斑片影，融合呈片状实变影，内可见含气支气管，较前新发。右下肺叶前段、左肺见散在类结节灶，直径约2~3MM，边界欠清，轮廓欠光整。气管、所示支气管及其分枝通畅，未见明显软组织肿物或受压变窄。纵隔、两肺门未见明显肿大淋巴结。右侧胸稍增厚，内可见钙化灶及多个类圆形结节影，边界清，密度均，增强后明显强化，大者短径约4MM。左侧胸腔未见积液，左侧胸膜未见明显增厚。肝脏形态、大小正常，各叶比例在正常范围内，外形轮廓光整，密度不均匀，肝内见多个类圆形低密度灶，最大者约为24MM×22MM，边界清楚，增强扫描未见明显强化。肝内外胆管未见扩张。胆囊大小正常，壁光滑，未见异常密度灶。脾脏大小正常，密度均匀。胰腺大小、形态、密度未见异常。右肾见多个类圆形囊性灶，最大者约为6MM×3MM，边界清，增强扫描未见强化。左肾及两侧肾下腺未见异常。腹膜后未见明显肿大淋巴结。扫描层面内未见明显骨质破坏。</t>
   </si>
   <si>
-    <t>右肺癌化疗后，对比2016-8-30CT：右肺上叶背段肺门旁软组织灶，较前未见明显变化。右肺上叶胸膜上病变，较前未见明显变化。纵隔及右肺门淋巴结转移，较前未见明显变化。两肺下叶、左肺中叶、两肺上叶慢性炎症，伴纤维增殖灶形成，大致同前。两肺上叶基底段少许斑片灶，考虑炎症，较前减少。两肺肺气肿，同前。肝S6小囊肿较前稍增大，余肝多发小囊肿大致同前；两肾小囊肿，同前。右肺癌化疗后：右肺上叶背段肺门旁见斑片状软组织灶，边界不清，形态不规则，与肿大淋巴结分界不清，大小难以准确测量，增强扫描较明显强化，病变远端右肺上叶背段胸膜上见不规则片状高密度灶，边界不清，密度不均匀，内见不规则空洞形成，范围约26MM×42MM，增强扫描轻中度不均匀强化。两肺下叶、左肺中叶、右肺上叶外基底段尚可见多发斑片状、条索状及类结节灶，边界欠清，左肺上叶后基底段及右肺上叶外基底段见少许斑片灶。两肺纹理稀疏，见多发小类圆形透亮区。右肺上叶背段支气管腔稍狭窄，气管及余支气管分支通畅。右上气管旁、主肺动脉窗、隆突上、右肺门见多个肿大淋巴结，部分相互融合，较大者短径约20MM，增强扫描明显强化。血管前、左上气管旁见数个小淋巴结，较大者短径约6MM。左肺门、两侧腋窝未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝实质见数个小类圆形低密度病变，边界清晰，较大者大小约15MM×8MM，增强扫描未见强化。肝内胆管正常，其内未见结石，胆囊大小正常，其内未见结石，胆总管未见扩张，其内未见结石影。肝门区结构未见异常。门静脉未见充盈缺损。脾及胰腺大小、形态正常，密度均匀。两肾实质见数个小类圆形低密度病灶，边界清晰，较大者直径约4MM，增强扫描未见强化。两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围内骨质未见明显破坏。</t>
+    <t>右肺癌化疗后，对比2016-8-30CT：_x0004_右肺上叶背段肺门旁软组织灶，较前未见明显变化。_x0004_右肺上叶胸膜上病变，较前未见明显变化。_x0004_纵隔及右肺门淋巴结转移，较前未见明显变化。_x0004_两肺下叶、左肺中叶、两肺上叶慢性炎症，伴纤维增殖灶形成，大致同前。_x0004_两肺上叶基底段少许斑片灶，考虑炎症，较前减少。_x0004_两肺肺气肿，同前。_x0004_肝S6小囊肿较前稍增大，余肝多发小囊肿大致同前；两肾小囊肿，同前。右肺癌化疗后：_x0004_右肺上叶背段肺门旁见斑片状软组织灶，边界不清，形态不规则，与肿大淋巴结分界不清，大小难以准确测量，增强扫描较明显强化，病变远端右肺上叶背段胸膜上见不规则片状高密度灶，边界不清，密度不均匀，内见不规则空洞形成，范围约26MM×42MM，增强扫描轻中度不均匀强化。_x0004_两肺下叶、左肺中叶、右肺上叶外基底段尚可见多发斑片状、条索状及类结节灶，边界欠清，左肺上叶后基底段及右肺上叶外基底段见少许斑片灶。两肺纹理稀疏，见多发小类圆形透亮区。右肺上叶背段支气管腔稍狭窄，气管及余支气管分支通畅。_x0004_右上气管旁、主肺动脉窗、隆突上、右肺门见多个肿大淋巴结，部分相互融合，较大者短径约20MM，增强扫描明显强化。血管前、左上气管旁见数个小淋巴结，较大者短径约6MM。左肺门、两侧腋窝未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜粘连。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝实质见数个小类圆形低密度病变，边界清晰，较大者大小约15MM×8MM，增强扫描未见强化。肝内胆管正常，其内未见结石，胆囊大小正常，其内未见结石，胆总管未见扩张，其内未见结石影。肝门区结构未见异常。门静脉未见充盈缺损。脾及胰腺大小、形态正常，密度均匀。两肾实质见数个小类圆形低密度病灶，边界清晰，较大者直径约4MM，增强扫描未见强化。两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_扫描范围内骨质未见明显破坏。</t>
   </si>
   <si>
     <t>纵隔,右肺门淋巴结</t>
   </si>
   <si>
-    <t>直肠癌术后肺转移、肝转移综合治疗后，与2016-4-11日片对比：左下肺病灶，较前缩小；左中肺及上肺多发病灶，较前未见明显变化。右肺下叶前段、上叶前内基底段小结节，为新增病灶，可疑转移瘤，建议密切随诊。肝S4、S7病灶，考虑消融术后改变，较前未见明显变化。肝S7结节，考虑血管瘤。肝S7肝内胆管结石。甲状腺左叶结节，较前未见明显变化。直肠癌术后改变，未见复发征象。直肠癌术后肺转移、肝转移综合治疗后，与2016-4-11日片对比：左肺下叶见一结节灶，大小约24MM×15MM，形态不规则，边界不清，密度不均匀，增强扫描不均匀强化，病灶周围见多发条索灶，与邻近胸膜牵拉粘连，较前缩小。左肺上叶前基底段见一结节，大小约20MM×16MM，边界不清，密度不均匀，增强扫描轻度强化，较前未见明显变化。左肺中叶胸膜上及上叶后基底段各见不规则病灶，大小约7MM×8MM、12MM×11MM，内见空洞影，边缘模糊，周围见条索灶，与邻近胸膜粘连，较前变化不大。右肺下叶前段、上叶前内基底段（Se9，Im112/145）各见一小结节，直径约2-3MM。气管及支气管分支通畅。左下气管旁、两上气管旁见数个淋巴结，大者短径约12MM，密度欠均匀，强化明显。两侧胸腔未见积液。两侧胸膜未见增厚。两侧乳腺术后缺失，两侧腋窝未见肿大淋巴结。甲状腺左叶体积增大，见一稍低密度结节，大小约16MM×13MM，边界清楚，增强扫描较明显强化，大致同前。肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝S4、S7各见一斑片状低密度病变，较大者大小约26MM×16MM，边界清晰，增强扫描未见强化，大致同前。肝S7下述病灶前缘见一结节，大小约13MM×9MM，边界清楚，增强扫描动脉期结节样强化，门脉期、延迟期仍明显强化。肝S7另见一颗粒状致密灶。肝内外胆管未见扩张，胆囊不大，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾及胰腺未见异常。两肾及两侧肾下腺未见异常。肝门区及腹膜后未见肿大淋巴结。直肠癌术后，吻合口区肠壁未见明显增厚，肠周间隙清晰。膀胱充盈良好，境界清楚。子宫、宫颈大小、形态未见异常，宫腔内见金属节育环。两侧附件区未见明确肿块。两侧腹股沟区及两侧髂血管旁未见肿大淋巴结。扫描范围内未见明确骨质破坏。</t>
+    <t>直肠癌术后肺转移、肝转移综合治疗后，与2016-4-11日片对比：_x0004_左下肺病灶，较前缩小；左中肺及上肺多发病灶，较前未见明显变化。_x0004_右肺下叶前段、上叶前内基底段小结节，为新增病灶，可疑转移瘤，建议密切随诊。_x0004_肝S4、S7病灶，考虑消融术后改变，较前未见明显变化。_x0004_肝S7结节，考虑血管瘤。_x0004_肝S7肝内胆管结石。_x0004_甲状腺左叶结节，较前未见明显变化。_x0004_直肠癌术后改变，未见复发征象。直肠癌术后肺转移、肝转移综合治疗后，与2016-4-11日片对比：_x0004_左肺下叶见一结节灶，大小约24MM×15MM，形态不规则，边界不清，密度不均匀，增强扫描不均匀强化，病灶周围见多发条索灶，与邻近胸膜牵拉粘连，较前缩小。左肺上叶前基底段见一结节，大小约20MM×16MM，边界不清，密度不均匀，增强扫描轻度强化，较前未见明显变化。左肺中叶胸膜上及上叶后基底段各见不规则病灶，大小约7MM×8MM、12MM×11MM，内见空洞影，边缘模糊，周围见条索灶，与邻近胸膜粘连，较前变化不大。右肺下叶前段、上叶前内基底段（Se9，Im112/145）各见一小结节，直径约2-3MM。_x0004_气管及支气管分支通畅。左下气管旁、两上气管旁见数个淋巴结，大者短径约12MM，密度欠均匀，强化明显。两侧胸腔未见积液。两侧胸膜未见增厚。两侧乳腺术后缺失，两侧腋窝未见肿大淋巴结。甲状腺左叶体积增大，见一稍低密度结节，大小约16MM×13MM，边界清楚，增强扫描较明显强化，大致同前。_x0004_肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝S4、S7各见一斑片状低密度病变，较大者大小约26MM×16MM，边界清晰，增强扫描未见强化，大致同前。肝S7下述病灶前缘见一结节，大小约13MM×9MM，边界清楚，增强扫描动脉期结节样强化，门脉期、延迟期仍明显强化。肝S7另见一颗粒状致密灶。肝内外胆管未见扩张，胆囊不大，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾及胰腺未见异常。两肾及两侧肾下腺未见异常。肝门区及腹膜后未见肿大淋巴结。_x0004_直肠癌术后，吻合口区肠壁未见明显增厚，肠周间隙清晰。膀胱充盈良好，境界清楚。子宫、宫颈大小、形态未见异常，宫腔内见金属节育环。两侧附件区未见明确肿块。两侧腹股沟区及两侧髂血管旁未见肿大淋巴结。扫描范围内未见明确骨质破坏。</t>
   </si>
   <si>
     <t>左下肺,左中肺及上肺,右肺下叶前段,上叶前内基底段,肝S4,S7</t>
   </si>
   <si>
-    <t>左肺下叶尖段软组织灶，符合肺癌化疗后改变。左锁下、纵隔及左肺门多发肿大淋巴结，考虑转移。食管胸上段至贲门部增厚，考虑食管贲门癌化疗后改变。贲门旁、胃右血管旁数个小淋巴结，考虑转移待排。两下肺肺大泡，两下肺斑片状磨玻璃密度影条片影，考虑炎性病变。左中肺钙化灶。左肺中叶片状磨玻璃密度灶，考虑炎性病变与增殖灶鉴别。脾内低密度灶，考虑囊肿可能性大。右肾囊肿。左下肺癌并胸上段食管癌化疗后复查：左肺下叶尖段见不规则软组织灶，边界欠清，边缘分叶，大小约22MM×11MM，邻近胸膜受牵拉、粘连，病灶周围见无肺纹理透亮灶及条索影。两下肺见多发无肺纹理透亮灶，少许斑片状磨玻璃密度影及条片影。左肺中叶见一钙化点。左肺中叶见片状磨玻璃密度灶，边界清楚，与斜裂胸膜粘连。食管胸上段至贲门部增厚，最厚约14MM，增强扫描明显强化。贲门旁、胃右血管旁见数个小淋巴结，大者短径约6MM，增强扫描较明显强化。左锁下、左下上气管旁、血管前、主肺动脉窗及左肺门见多发肿大淋巴结，边界欠清，最大约21MM×13MM，增强扫描不均匀明显强化；右肺门及两侧腋窝未见明显肿大淋巴结。气管及支气管分支通畅。两侧胸腔未见积液。两侧胸膜无增厚、粘连。心包见少量积液。肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，未见明显异常密度灶，增强扫描未见异常强化影。肝内胆管未见扩张，其内未见结石影，胆囊不大，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，内见一低密度结节，直径约6MM，增强扫描未见强化。胰腺大小、形态未见异常，密度均匀。右肾下极见一囊性灶，直径约14MM，增强扫描未见强化，左肾及两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描所见骨质未见破坏征象。</t>
+    <t>左肺下叶尖段软组织灶，符合肺癌化疗后改变。_x0004_左锁下、纵隔及左肺门多发肿大淋巴结，考虑转移。_x0004_食管胸上段至贲门部增厚，考虑食管贲门癌化疗后改变。_x0004_贲门旁、胃右血管旁数个小淋巴结，考虑转移待排。_x0004_两下肺肺大泡，两下肺斑片状磨玻璃密度影条片影，考虑炎性病变。_x0004_左中肺钙化灶。_x0004_左肺中叶片状磨玻璃密度灶，考虑炎性病变与增殖灶鉴别。_x0004_脾内低密度灶，考虑囊肿可能性大。右肾囊肿。_x0004_左下肺癌并胸上段食管癌化疗后复查：_x0004_左肺下叶尖段见不规则软组织灶，边界欠清，边缘分叶，大小约22MM×11MM，邻近胸膜受牵拉、粘连，病灶周围见无肺纹理透亮灶及条索影。_x0004_两下肺见多发无肺纹理透亮灶，少许斑片状磨玻璃密度影及条片影。_x0004_左肺中叶见一钙化点。左肺中叶见片状磨玻璃密度灶，边界清楚，与斜裂胸膜粘连。_x0004_食管胸上段至贲门部增厚，最厚约14MM，增强扫描明显强化。贲门旁、胃右血管旁见数个小淋巴结，大者短径约6MM，增强扫描较明显强化。_x0004_左锁下、左下上气管旁、血管前、主肺动脉窗及左肺门见多发肿大淋巴结，边界欠清，最大约21MM×13MM，增强扫描不均匀明显强化；右肺门及两侧腋窝未见明显肿大淋巴结。_x0004_气管及支气管分支通畅。_x0004_两侧胸腔未见积液。两侧胸膜无增厚、粘连。心包见少量积液。_x0004_肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，未见明显异常密度灶，增强扫描未见异常强化影。肝内胆管未见扩张，其内未见结石影，胆囊不大，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。_x0004_脾未见增大，内见一低密度结节，直径约6MM，增强扫描未见强化。胰腺大小、形态未见异常，密度均匀。右肾下极见一囊性灶，直径约14MM，增强扫描未见强化，左肾及两肾下腺未见异常。_x0004_膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_扫描所见骨质未见破坏征象。</t>
   </si>
   <si>
     <t>左肺下叶尖段,胸上段食管</t>
@@ -4712,13 +4712,13 @@
     <t>两侧额叶,左侧丘脑,右侧直回,右侧顶叶</t>
   </si>
   <si>
-    <t>主动脉窦部及升主动脉增宽(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，39，20-37MM，右房内径，30，19-40MM，右室舒张末内径，43，35-56MM，右室收缩末内径，28，23-35MM，室间隔厚度，7，6-11MM，右室后壁厚度，8，6-11MM，肺动脉收缩压，35，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，64，%，二尖瓣血流图：，E、A两峰，，E/A，&amp;gt；，1；DT：，176，ms，DTI示S波峰值：，7.9，cm/s；E/A，&amp;gt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，正常，，右室内径，正常，，右室壁厚度，正常，，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，，开放不受限，彩色多普勒，示轻微，二尖瓣反流。，3、主动脉窦部，增宽为39MM，，升主动脉，增宽为41MM，，主动脉瓣，不增厚，，，开放不受限，，彩色多普勒，未测及，主动脉瓣反流。，4、左房内径，正常，，左室内径，正常，，肺动脉，不增宽，，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
-  </si>
-  <si>
-    <t>肝囊肿。左侧胸腔少量积液（陈旧性）。胆囊、脾脏、胰腺、两肾、膀胱未见明显占位病变声像。两侧输尿管未见明确扩张。左侧附件区囊性灶，考虑卵巢囊肿。子宫、左侧附件区未见明显占位病变声像。肝脏大小、形态正常，包膜光滑，实质回声均匀，血管走行清晰、自然，肝内胆管不扩张，门静脉内径11MM，肝S5门脉旁见一个无回声灶，大小约25MM×13MM，类圆形，边界清，内部透声良好，后方回声增强。CDFI：肝动脉、门静脉血流通畅，为向肝血流信号，充盈良好，肝内未见明确异常血流信号。门静脉最大血流速度约15CM/s。胆囊大小形态正常，囊壁不厚，胆囊内未见明显异常回声。脾脏大小形态正常，包膜光滑，实质回声均匀，未见明显异常回声。胰腺大小形态正常，实质回声均匀，未见明显异常回声。两肾大小形态正常，实质回声均匀，未见明显异常回声。CDFI：两肾血流呈珊瑚状，未见明确异常血流信号。两侧输尿管未见明确扩张。膀胱充盈良好，膀胱壁光滑，不厚，膀胱腔内未见明确肿物回声。子宫大小、形态正常，大小约41MM×40MM×20MM，前位，包膜光滑，宫壁肌层回声均匀，宫腔线清晰，居中。右侧卵巢显示清晰，左侧附件区见一个无回声团，大小约28MM×18MM，椭圆形，边界清，内不透声良好，后方回声增强。CDFI：子宫、两附件未见明确异常血流信号。左侧胸腔探及少量积液，内部透声不佳，宽约35MM。</t>
-  </si>
-  <si>
-    <t>肺癌化疗后复：左下肺后段病变，较前未见明显变化，考虑肿瘤播散可能性大，部分不除外阻塞性肺炎。纵隔、左肺门多发淋巴结，考虑转移瘤，较前未见明显变化。肝S4囊肿。右肾结石所见椎体密度普遍不均匀减低，较前未见明显变化。肺癌化疗后复查，对比2016-06-20片：左下肺后段多支支气管远段管壁增厚，管腔狭窄，左下肺后段肺动脉分支管壁增厚，管腔未见充盈缺损，沿支气管血管周围肺组织见多发斑点、斑片状高密度影，边界模糊，增强扫描见强化，较前未见明显变化。两下肺见多发斑片状无肺纹理透亮区，以左下肺为著，较前未见明显变化。血管前、主肺动脉窗、左下上气管旁、右上气管旁、隆突上、左肺门见多发淋巴结，边界欠清，部分融合，较大者大小约26MM×42MM，增强扫描较明显不均匀强化，部分内见坏死，较前未见明显变化，下腔静脉受压。两侧胸腔未见积液；两侧胸膜增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝S4见一低密度灶，边界尚清，大小约8MM×5MM，增强扫描强化不明显。肝S7见一斑片状动脉期异常强化区，其余各期未见明确显示。胆囊大小正常，其内未见结石影；肝内胆管、胆总管未见扩张，其内未见结石影。肝门区正常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见一点状致密灶，左肾及两肾下腺形态及密度未见明显异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。所见椎体密度普遍不均匀减低，较前未见明显变化。</t>
+    <t>主动脉窦部及升主动脉增宽(心脏彩色多普勒超声+右心功能测定+TDI),常规检查切面观,：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、M型及血流多普勒超声测量：,名称,测量值,正常值,主动脉根部内径,39,20-37MM,右房内径,30,19-40MM,右室舒张末内径,43,35-56MM,右室收缩末内径,28,23-35MM,室间隔厚度,7,6-11MM,右室后壁厚度,8,6-11MM,肺动脉收缩压,35,&amp;lt;40MMHg,医学图像序列2行2列,宽：110,二、右心功能测定及组织多普勒显像测量:,右室射血分数（LVEF）：,64,%,二尖瓣血流图：,E、A两峰,，E/A,&amp;gt;,1；DT：,176,ms,DTI示S波峰值：,7.9,cm/s；E/A,&amp;gt;,1,三、普通二维超声心动图和各心腔及大血管血流显像：,1、右房内径,正常,，右室内径,正常,，右室壁厚度,正常,，静息状态上右室各节段收缩活动未见异常。,2、二尖瓣,不增厚,，开放不受限，彩色多普勒,示轻微,二尖瓣反流。,3、主动脉窦部,增宽为39MM,，升主动脉,增宽为41MM,，主动脉瓣,不增厚,，,开放不受限,，彩色多普勒,未测及,主动脉瓣反流。,4、左房内径,正常,，左室内径,正常,，肺动脉,不增宽,，三尖瓣不增厚，开放不受限，彩色多普勒,示轻微,三尖瓣反流。,5、心包腔内,未见明显积液,。,四、结论：,</t>
+  </si>
+  <si>
+    <t>肝囊肿。_x0004__x0004_左侧胸腔少量积液（陈旧性）。_x0004__x0004_胆囊、脾脏、胰腺、两肾、膀胱未见明显占位病变声像。_x0004__x0004_两侧输尿管未见明确扩张。_x0004__x0004_左侧附件区囊性灶，考虑卵巢囊肿。_x0004__x0004_子宫、左侧附件区未见明显占位病变声像。_x0004__x0004_肝脏大小、形态正常，包膜光滑，实质回声均匀，血管走行清晰、自然，肝内胆管不扩张，门静脉内径11MM，肝S5门脉旁见一个无回声灶，大小约25MM×13MM，类圆形，边界清，内部透声良好，后方回声增强。_x0004__x0004_CDFI：肝动脉、门静脉血流通畅，为向肝血流信号，充盈良好，肝内未见明确异常血流信号。门静脉最大血流速度约15CM/s。_x0004__x0004_胆囊大小形态正常，囊壁不厚，胆囊内未见明显异常回声。_x0004__x0004_脾脏大小形态正常，包膜光滑，实质回声均匀，未见明显异常回声。_x0004__x0004_胰腺大小形态正常，实质回声均匀，未见明显异常回声。_x0004__x0004_两肾大小形态正常，实质回声均匀，未见明显异常回声。_x0004__x0004_CDFI：两肾血流呈珊瑚状，未见明确异常血流信号。_x0004__x0004_两侧输尿管未见明确扩张。_x0004__x0004_膀胱充盈良好，膀胱壁光滑，不厚，膀胱腔内未见明确肿物回声。_x0004__x0004_子宫大小、形态正常，大小约41MM×40MM×20MM，前位，包膜光滑，宫壁肌层回声均匀，宫腔线清晰，居中。_x0004__x0004_右侧卵巢显示清晰，左侧附件区见一个无回声团，大小约28MM×18MM，椭圆形，边界清，内不透声良好，后方回声增强。_x0004__x0004_CDFI:子宫、两附件未见明确异常血流信号。_x0004__x0004_左侧胸腔探及少量积液，内部透声不佳，宽约35MM。</t>
+  </si>
+  <si>
+    <t>肺癌化疗后复：_x0004_左下肺后段病变，较前未见明显变化，考虑肿瘤播散可能性大，部分不除外阻塞性肺炎。_x0004_纵隔、左肺门多发淋巴结，考虑转移瘤，较前未见明显变化。_x0004_肝S4囊肿。右肾结石_x0004_所见椎体密度普遍不均匀减低，较前未见明显变化。肺癌化疗后复查，对比2016-06-20片：_x0004_左下肺后段多支支气管远段管壁增厚，管腔狭窄，左下肺后段肺动脉分支管壁增厚，管腔未见充盈缺损，沿支气管血管周围肺组织见多发斑点、斑片状高密度影，边界模糊，增强扫描见强化，较前未见明显变化。两下肺见多发斑片状无肺纹理透亮区，以左下肺为著，较前未见明显变化。_x0004_血管前、主肺动脉窗、左下上气管旁、右上气管旁、隆突上、左肺门见多发淋巴结，边界欠清，部分融合，较大者大小约26MM×42MM，增强扫描较明显不均匀强化，部分内见坏死，较前未见明显变化，下腔静脉受压。_x0004_两侧胸腔未见积液；两侧胸膜增厚。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝S4见一低密度灶，边界尚清，大小约8MM×5MM，增强扫描强化不明显。肝S7见一斑片状动脉期异常强化区，其余各期未见明确显示。_x0004_胆囊大小正常，其内未见结石影；肝内胆管、胆总管未见扩张，其内未见结石影。_x0004_肝门区正常。门静脉未见异常。_x0004_脾大小正常，密度均匀。_x0004_胰腺大小、形态正常，密度均匀。_x0004_右肾见一点状致密灶，左肾及两肾下腺形态及密度未见明显异常。_x0004_膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_所见椎体密度普遍不均匀减低，较前未见明显变化。</t>
   </si>
   <si>
     <t>左下肺后段,纵隔,左肺门多发淋巴结</t>
@@ -4727,7 +4727,7 @@
     <t>肝囊肿，右肾囊肿肝肋上斜切120MM/（－），剑上纵切62MM/2指，肝区回声较密尚均，肝左叶见17MM×14MM无回声区，门脉主干内径10MM，左支内径7MM，流速0.18MM/s，主干及右左支血流通畅，为向肝血流，流速曲线正常，脾门处脾静脉内径4MM，血流通畅。肝静脉血流通畅。脾肋间切27MM/（－）。胆囊62MM×22MM，胆总管5MM。胰头15MM，胰体12MM，胰尾14MM。左肾109MM×45MM×46MM，肾盂分离(-)，右肾105MM×46MM×47MM，肾盂分离(-)，右肾见10MM无回声区。两侧输尿管未见明显扩张。两侧肾下腺区未见明显肿块回声。腹膜后未见明显肿块回声。CDFI未见异常彩色血流。CDFI肝胆胰肾血流正常。</t>
   </si>
   <si>
-    <t>1.左乳MT术后，左肺中叶糖代谢增高的结节，考虑为MT可能，请结合临床；2.左肺上叶背段无明显糖代谢的结节，考虑为慢性炎性病变；3.肝脏、右肾无明显糖代谢的低密度灶，考虑为良性病变。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示左乳MT术后，左肺中叶外侧段见一糖代谢增高的结节，大小为11.4MM×9.4MM，最大SUV值为3.19，延迟1.5小时后为4.33，滞留指数为35.74%，所示结节呈分叶状，边缘毛糙，周围似见细毛刺，内见小泡征；左肺上叶背段胸膜上见一无明显糖代谢的小结节，边缘锐利，密度较高，大小为3.6MM×2.6MM，余处未见明显糖代谢异常增高灶及占位性病变；两侧胸腔无积液；心脏无明显增大；右侧乳腺无明显占位。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，肝右左叶交界处见边界清楚的低密度灶，大小为12.2MM×9.2MM，余实质内未见异常占位；肝内外胆管无扩张；右肾见边界清楚的低密度灶，最大者大小为14.5MM×13.2MM，左肾无殊；脾脏不大，密度均，未见异常占位；所示胆囊、胰、两肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈，壁光滑无增厚；子宫和两附件区未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见明显骨质破坏吸收征象。</t>
+    <t>1.左乳MT术后，左肺中叶糖代谢增高的结节，考虑为MT可能，请结合临床；_x0004_2.左肺上叶背段无明显糖代谢的结节，考虑为慢性炎性病变；_x0004_3.肝脏、右肾无明显糖代谢的低密度灶，考虑为良性病变。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示左乳MT术后，左肺中叶外侧段见一糖代谢增高的结节，大小为11.4MM×9.4MM，最大SUV值为3.19，延迟1.5小时后为4.33，滞留指数为35.74%，所示结节呈分叶状，边缘毛糙，周围似见细毛刺，内见小泡征；左肺上叶背段胸膜上见一无明显糖代谢的小结节，边缘锐利，密度较高，大小为3.6MM×2.6MM，余处未见明显糖代谢异常增高灶及占位性病变；两侧胸腔无积液；心脏无明显增大；右侧乳腺无明显占位。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，肝右左叶交界处见边界清楚的低密度灶，大小为12.2MM×9.2MM，余实质内未见异常占位；肝内外胆管无扩张；右肾见边界清楚的低密度灶，最大者大小为14.5MM×13.2MM，左肾无殊；脾脏不大，密度均，未见异常占位；所示胆囊、胰、两肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈，壁光滑无增厚；子宫和两附件区未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见明显骨质破坏吸收征象。</t>
   </si>
   <si>
     <t>左肺中叶</t>
@@ -4745,7 +4745,7 @@
     <t>右上肺癌术后化疗后：左残肺、右肺叶小类结节灶，考虑增殖灶，较前未见明显变化。右肺上叶及左肺中叶少许纤维增殖灶。左上胸膜稍增厚。两侧锁骨下区、纵隔及肺门小淋巴结。肝小囊肿。两肾囊肿。右上肺癌术后化疗后，与2015-01-07片对比：左肺上叶术后缺如，左肺上叶支气管中断，断端见金属密影，未见明确软组织肿块影或异常强化灶。左残肺、右肺叶见散在小类结节灶，短径约3MM，边界欠清，密度欠均匀，较前未见明显变化；右肺上叶及左肺中叶尚见少许条索影，边界欠清。气管及余支气管分支未见明显狭窄及异常扩张。两侧锁骨下区、左侧气管食管沟、左下气管旁、主肺动脉窗、两侧肺门见数个小淋巴结，短径约3~6MM，边界清，密度均匀。两侧胸腔未见积液。左上胸膜稍增厚。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝内见数个小类圆形低密度灶，直径约2~4MM，边界清，密度均匀，未见强化。肝内胆管未见扩张，其内未见结石。胆囊大小未见异常，其内未见结石。胆总管未见扩张，其内未见结石。肝门区结构未见异常。门静脉未见充盈缺损。脾大小未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾见多发小囊性低密度病变，较大者短径约10MM，边界清，增强未见强化。右侧肾下腺见结节状稍增粗。左肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围内骨质未见破坏征象。</t>
   </si>
   <si>
-    <t>None左肺癌放化疗后，与2016-10-11MMR及2016-12-12CT片对比：1、左下肺门区见一不规则形软组织信号灶，边界不清，大小约37MM×24MM，T1WI呈等信号，T2WI呈稍高信号，增强扫描不均匀轻度强化，病灶较前明显增大。2、左肺下叶明显缩小，呈片状实变，左肺中叶内侧段及左上肺后内基底段见条状、斑片状异常信号灶，部分边界欠清，信号不均匀，T1WI呈等或低信号，T2WI呈低或稍高信号，增强扫描明显强化，考虑炎症合并肺不张，肺不张范围较前增大，其中左中肺及左上肺炎症范围较前缩小。3、左中肺及左上肺见散在斑片异常信号灶，边界不清，考虑炎症，范围较前（2016-12-12CT）缩小。4、右上肺见数个类结节灶，边界清，大小约2~4MM，较前（2016-12-12CT）相仿。5、左肺下叶支气管闭塞，中叶支气管变窄，较前明显。6、左肺门、隆突上见数个淋巴结，较大者短径约14MM，边界不清，增强扫描不均匀稍明显强化，部分较前稍增大。7、左侧胸腔中量积液、少量积气；右侧胸腔少量积液，较前新发。8、扫描范围肝S4、5、8见数个小囊性信号灶，边界清，较大者直径约5MM，未见强化，考虑肝囊肿，较前相仿。9、两侧大脑白质内见多个斑点状、小斑片状异常信号影，T1WI呈等或稍低信号，T2WI呈高信号，T2FLAIR呈高信号，未见强化，考虑脑多发缺血灶。10、副鼻窦炎。</t>
+    <t>None左肺癌放化疗后，与2016-10-11MMR及2016-12-12CT片对比：_x0004_1、左下肺门区见一不规则形软组织信号灶，边界不清，大小约37MM×24MM，T1WI呈等信号，T2WI呈稍高信号，增强扫描不均匀轻度强化，病灶较前明显增大。_x0004_2、左肺下叶明显缩小，呈片状实变，左肺中叶内侧段及左上肺后内基底段见条状、斑片状异常信号灶，部分边界欠清，信号不均匀，T1WI呈等或低信号，T2WI呈低或稍高信号，增强扫描明显强化，考虑炎症合并肺不张，肺不张范围较前增大，其中左中肺及左上肺炎症范围较前缩小。_x0004_3、左中肺及左上肺见散在斑片异常信号灶，边界不清，考虑炎症，范围较前（2016-12-12CT）缩小。_x0004_4、右上肺见数个类结节灶，边界清，大小约2~4MM，较前（2016-12-12CT）相仿。_x0004_5、左肺下叶支气管闭塞，中叶支气管变窄，较前明显。_x0004_6、左肺门、隆突上见数个淋巴结，较大者短径约14MM，边界不清，增强扫描不均匀稍明显强化，部分较前稍增大。_x0004_7、左侧胸腔中量积液、少量积气；右侧胸腔少量积液，较前新发。_x0004_8、扫描范围肝S4、5、8见数个小囊性信号灶，边界清，较大者直径约5MM，未见强化，考虑肝囊肿，较前相仿。_x0004_9、两侧大脑白质内见多个斑点状、小斑片状异常信号影，T1WI呈等或稍低信号，T2WI呈高信号，T2FLAIR呈高信号，未见强化，考虑脑多发缺血灶。_x0004_10、副鼻窦炎。</t>
   </si>
   <si>
     <t>左下肺门区</t>
@@ -4760,7 +4760,7 @@
     <t>左肺癌术后化疗后，对比2013-10-11片：左中肺内段少许节段性不张，左肺中叶条索影及斑片影考虑为纤维增殖灶，较前变化不大。右上肺近膈面小类结节，较前无大变化，考虑增殖灶。右侧肾下腺结节，考虑腺瘤可能性大，大致同前。左肺癌术后化疗后，与2013-10-11对比：左下肺叶术后缺如，左侧胸廓稍缩小，左肺中叶见条索影及斑片影，边界尚清，邻近胸膜粘连，左肺中叶纵隔旁见条片状软组织密度灶，所见较前变化不大。右上肺近膈面见一小结节，直径约3MM，边界尚清。余肺内未见明确实质性病灶。气管、所示支气管及其分枝通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。右侧胸膜未见增厚、粘连。肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝内未见异常密度灶。肝内外胆管无扩张，胆囊不大，壁不厚，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾不大，密度均匀。胰腺形态、大小及密度未见异常。右侧肾下腺见一结节，直径约10MM，边界清楚，密度均匀，增强扫描均匀强化，大致同前。左侧肾下腺未见异常。两肾未见异常。肝门区及腹膜后未见肿大淋巴结。扫描范围内未见明确骨质破坏。</t>
   </si>
   <si>
-    <t>心内结构及血流未见异常静息状态上右室整体收缩功能正常二维测值（mm）：主动脉内径：21-28-24右房内径：38升主动脉：31室间隔厚度：9右室舒末内径：45右室缩末内径：24右室后壁厚度：8左室内径：18肺动脉内径：20Doppler测值：各瓣口前向血流峰速度（m/s）二尖瓣：E峰0.6A峰0.8三尖瓣：E峰0.7A峰0.6主动脉瓣：1.3肺动脉瓣：1.0心功能测值：右室舒末容积EDV：65(ml)右室缩末容积ESV：20(ml)每搏量SV：45(ml)射血分数EF：69%右房内径正常高值，右室内径在正常范围，右室各壁向心运动良好，未见节段性运动异常。各瓣膜开放良好，各瓣口前向血流速度在正常范围。二、三尖瓣探及微量返流。心包腔未见液性暗区。</t>
+    <t>心内结构及血流未见异常静息状态上右室整体收缩功能正常二维测值（mm）：主动脉内径：21-28-24右房内径：38升主动脉：31室间隔厚度：9右室舒末内径：45右室缩末内径：24右室后壁厚度：8左室内径：18肺动脉内径：20Doppler测值:各瓣口前向血流峰速度（m/s）二尖瓣：E峰0.6A峰0.8三尖瓣：E峰0.7A峰0.6主动脉瓣：1.3肺动脉瓣：1.0心功能测值：右室舒末容积EDV：65(ml)右室缩末容积ESV：20(ml)每搏量SV：45(ml)射血分数EF：69%右房内径正常高值，右室内径在正常范围，右室各壁向心运动良好，未见节段性运动异常。各瓣膜开放良好，各瓣口前向血流速度在正常范围。二、三尖瓣探及微量返流。心包腔未见液性暗区。</t>
   </si>
   <si>
     <t>左肺癌化疗后放疗中：左下肺尖段致密，密度较前增高，范围较前增大，考虑放疗后改变。左肺门团片影，较前明显增大，考虑放射性肺炎并左肺门淋巴结肿大。左肺野内多发斑片状、斑点状及条索状高密度影，较前增多、增大，考虑放射性肺炎。左肺癌化疗后放疗中复查，与2016-12-19片对比：左下肺尖致密，范围约90MM×64MM，密度较前增高，范围较前增大；左肺门浓密，见团片状密度增高影，边界欠清，大小约86MM×58MM，较前明显增大。余左肺内见多发弥漫性分布斑片状、斑点状及条索状高密度影，密度不均匀，边界模糊，较前增多、增大；右肺未见明显实质性病变。右肺门、右侧纵隔未见增宽，心影无增大。两侧膈面光滑，两侧肋膈角稍钝。</t>
@@ -4787,7 +4787,7 @@
     <t>右心增大二尖瓣关闭不全（轻-中度）三尖瓣少量返流心室舒张功能减低心包腔中量积液升主动脉32MM。瓣开20MM。右房前后径42MM。室间隔：10MM，右室前后径：54MM，右室后壁：8MM。左室径：22MM。右室收缩功能：射血分数（EF）54%肺动脉瓣：V：0.9MM/s。三尖瓣：E/A：0.4/0.5MM/s；反向：2.5MM/s，P：26MMHg。二尖瓣：E/A：0.8/1.1MM/s；反向：5.3MM/s，P：112MMHg。主动脉瓣：V：1.0MM/s。右心增大，左房室大小形态正常，室间隔及右室后壁厚度正常，运动协调反向。静息状态上未见节段性室壁运动障碍。各瓣膜形态结构正常。右室收缩运动及收缩功能正常。二、三尖瓣频谱示心室舒张功能减低。心包腔可见中量积液，后心包舒张期液体厚度约1.8CM。</t>
   </si>
   <si>
-    <t>右上肺癌术后、化疗后，与2011-07-14对比：右侧胸膜稍增厚，较前无明显变化。左肺中叶和上叶斑片状影，考虑炎症，较前未见明显变化。肝S6低密度灶，考虑肝囊肿。右肾上极结节，考虑血管平滑肌脂肪瘤可能性大；左肾囊肿。右侧肾下腺小结节，较前未见明显变化。右上肺癌术后、化疗后复查：右上肺缺失，右上肺野见散在少许条索影，边清。左肺中叶和左上肺后基底段可见斑片状影，边缘欠清。气管及左肺、右下肺支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。右侧胸膜增厚，左侧胸膜无增厚、粘连。右侧胸壁骨呈术后改变。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。肝S6见散在几个小圆形低密度灶，直径约3MM~6MM，边界清楚，增强扫描未见强化。同前对比，未见明显变化。肝内外胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影。肝门区正常。肝静脉、门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾上极见一稍低密度影，大小9MM×10MM，边界尚清，其内可见小片状极低密度影，增强扫描不均匀强化。左肾实质内见散在多个类圆形低密度灶，最大者约23MM×25MM，边界清楚，增强扫描未见强化。右侧肾下腺见一结节，大小7MM×11MM，密度欠均匀，增强轻度强化，较前未见明显变化；左侧肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。</t>
+    <t>右上肺癌术后、化疗后，与2011-07-14对比：_x0004_右侧胸膜稍增厚，较前无明显变化。_x0004_左肺中叶和上叶斑片状影，考虑炎症，较前未见明显变化。_x0004_肝S6低密度灶，考虑肝囊肿。_x0004_右肾上极结节，考虑血管平滑肌脂肪瘤可能性大；左肾囊肿。_x0004_右侧肾下腺小结节，较前未见明显变化。右上肺癌术后、化疗后复查：_x0004_右上肺缺失，右上肺野见散在少许条索影，边清。_x0004_左肺中叶和左上肺后基底段可见斑片状影，边缘欠清。_x0004_气管及左肺、右下肺支气管分支通畅。_x0004_两肺门及纵隔未见明显肿大淋巴结。_x0004_两侧胸腔未见积液。右侧胸膜增厚，左侧胸膜无增厚、粘连。_x0004_右侧胸壁骨呈术后改变。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。_x0004_肝S6见散在几个小圆形低密度灶，直径约3MM~6MM，边界清楚，增强扫描未见强化。同前对比，未见明显变化。_x0004_肝内外胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影。_x0004_肝门区正常。肝静脉、门静脉未见异常。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。_x0004_右肾上极见一稍低密度影，大小9MM×10MM，边界尚清，其内可见小片状极低密度影，增强扫描不均匀强化。左肾实质内见散在多个类圆形低密度灶，最大者约23MM×25MM，边界清楚，增强扫描未见强化。右侧肾下腺见一结节，大小7MM×11MM，密度欠均匀，增强轻度强化，较前未见明显变化；左侧肾下腺未见异常。_x0004_膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。</t>
   </si>
   <si>
     <t>左肺癌术后化疗后，与2013-02-27对比，左肺中叶、右肺下叶小结节影，同前未见明显变化。左肺中叶慢性炎症。左侧胸膜轻度增厚，较前未见明显变化。左侧胸腔少量积液，较前未见明显变化。肝内多发囊肿。右肾小囊肿。左上肺癌术后化疗后：左肺上叶术后缺失，左肺下中叶充气良好。左肺中叶边缘见少许斑片灶、条索病灶，与胸膜粘连。左肺中叶、右肺下叶见数个小结节影，直径约2~3MM，轮廓光整，密度均匀。气管及余支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。左侧胸腔少量积液，左侧胸膜轻度增厚。右侧胸腔未见积液。右侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝内见多发类圆形低密灶，边界清，最大者直径约15MM，边界清，增强扫描未见强化。胆囊大小正常，其内未见结石，肝内胆管、胆总管未见扩张，其内未见结石。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见小低密灶，边界清，短径约3MM，边界清，增强扫描未见强化，左肾所见正常。两肾下腺所见正常。膈脚后、腹膜未见明显肿大淋巴结。</t>
@@ -4805,7 +4805,7 @@
     <t>右肺癌综合治疗后复查，右残肺少许纤维增殖灶，较前未见明显变化。左肺数个小类结节灶，考虑增殖灶可能性大，较前未见明显变化。左肺上叶散在斑片状影，考虑少许慢性炎症或纤维灶，较前未见明显变化。右锁下、纵隔数个淋巴结，较前未见明显变化。右侧胸腔少量积液，右侧胸膜稍增厚，较前未见明显变化。甲状腺右叶病灶，考虑结节性甲状腺肿，较前未见明显变化。肝S2、7小囊肿。胆囊结石。右肾囊肿。胸10椎体右侧稍高密度灶，较前未见明显变化。右肺癌综合治疗后，与2016-10-17日片对比：右肺下叶术后缺失，右下肺支气管残端未见明确肿物。右肺上叶见少许纤维条索，边界清晰，未见明确结节影。左肺见数个类结节（se9，im78、100、181），较大者约3MM，边界清，较前未见明显变化。左肺上叶可见散在斑片状稍高密度影，边界模糊。气管及支气管分支通畅。右侧锁骨下、血管前、左下上气管旁、主动脉旁见多个淋巴结，最大者短径约9MM，边界清，增强后见较明显强化，较前未见明显变化。右侧胸腔见少量积液，右上胸膜稍增厚，较前变化不明显。左侧胸腔未见积液。扫描所见甲状腺右叶见2个结节，较大者约14MM×12MM，边界清晰，未见强化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S2、S7肝左静脉旁见囊性灶，直径约3MM，边界清楚，增强后未见强化。胆囊大小正常，内见小结石影，肝内胆管及胆总管未见扩张，未见结石。肝门区未见明确异常，门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见一囊性灶，大小约7MM×4MM，边界清，增强扫描未见强化，左肾、两肾下腺未见异常。腹主动脉旁未见肿大淋巴结。胸10椎体右侧见一稍高密度灶，直径约2MM，边界清，较前相仿。余扫描层面未见明确骨质破坏征象。</t>
   </si>
   <si>
-    <t>肝门胆管MT病例，侵犯肝脏、胰头及门静脉，较13-04-15片进展，双侧肾下腺转移，胸、腰椎转移；肝左叶结节较前片相仿；双侧胸腔积液，脾及两肾囊肿。肝门区见一约6.8CM×6.9CM团块影，呈T1WI低信号，T2WI稍高信号，增强呈延迟强化，边缘欠清，周围见多发小结节样类似强化灶，肝左叶后段可见一异常信号灶，T1WI呈低信号，T2WI、DWI略高信号，动态增强后见小片状强化，延迟期呈稍高信号，肝内胆管扩张，胆总管壁增厚，增强后明显强化并累及胰头钩突，门静脉主干及右支受侵犯；脾脏未见肿大，内见一囊性无强化灶；胰腺无殊，两侧肾脏见囊状无强化影，双侧肾下腺增粗，边界不清；后腹膜未见肿大淋巴结；双侧胸腔积液，腹腔内无积液；所扫胸椎、腰椎多发结节，增强后强化。</t>
+    <t>肝门胆管MT病例，侵犯肝脏、胰头及门静脉，较13-04-15片进展，双侧肾下腺转移，胸、腰椎转移；_x0004_肝左叶结节较前片相仿；双侧胸腔积液，脾及两肾囊肿。肝门区见一约6.8CM×6.9CM团块影，呈T1WI低信号，T2WI稍高信号，增强呈延迟强化，边缘欠清，周围见多发小结节样类似强化灶，肝左叶后段可见一异常信号灶，T1WI呈低信号，T2WI、DWI略高信号，动态增强后见小片状强化，延迟期呈稍高信号，肝内胆管扩张，胆总管壁增厚，增强后明显强化并累及胰头钩突，门静脉主干及右支受侵犯；脾脏未见肿大，内见一囊性无强化灶；胰腺无殊，两侧肾脏见囊状无强化影，双侧肾下腺增粗，边界不清；后腹膜未见肿大淋巴结；双侧胸腔积液，腹腔内无积液；所扫胸椎、腰椎多发结节，增强后强化。</t>
   </si>
   <si>
     <t>肝门胆管</t>
@@ -4820,7 +4820,7 @@
     <t>两肺,两锁下,纵隔及两肺门多发淋巴结,两颈多发肿大淋巴结</t>
   </si>
   <si>
-    <t>肺癌化疗后复查，对比2016-08-05片：左下肺后段病变，考虑肿瘤播散可能性大，部分不除外阻塞性肺炎，较前缩小。右肺下叶、左肺下叶前段、上叶背段、后基底段新发病变，考虑炎症。纵隔、左肺门多发淋巴结，考虑转移瘤，较前稍缩小。肝S4囊肿。肝S7/6病变，考虑海绵状血管瘤可能性大。右肾结石。腹腔干旁淋巴结稍肿大，性质待定，建议随诊。所见椎体密度普遍不均匀减低，较前未见明显变化。肺癌化疗后复查，对比2016-08-05片：左肺下叶后段多支支气管远段管壁增厚，管腔狭窄，左下肺后段肺动脉分支管壁增厚，管腔未见充盈缺损，较前未见明显变化，沿支气管血管周围肺组织见多发斑点、斑片状高密度影，边界模糊，增强扫描见强化，较前缩小。右肺下叶、左肺下叶前段、上叶背段、后基底段见多发斑片状高密度灶，边界模糊不清。两下肺见多发斑片状无肺纹理透亮区，以左下肺为著，较前未见明显变化。血管前、主肺动脉窗、左下上气管旁、右上气管旁、隆突上、左肺门见多发淋巴结，边界欠清，部分融合，增强扫描较明显不均匀强化，部分内见坏死，较前缩小，下腔静脉受压。两侧胸腔未见积液；两侧胸膜增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝S4见一低密度灶，边界尚清，大小约8MM×5MM，增强扫描强化不明显。肝S7/6见一结节，大小约为10MM×7MM，增强扫描动脉期、静脉期见明显强化，至延迟期强化程度与肝实质相近。胆囊大小正常，其内未见结石影；肝内胆管、胆总管未见扩张，其内未见结石影。肝门区正常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见一点状致密灶，左肾及两肾下腺形态及密度未见明显异常。腹腔干周围见一淋巴结，短径约为11MM，边界清楚，密度均匀，增强扫描见明显强化。膈脚后、胃右、腹主动脉旁未见肿大淋巴结。所见椎体密度普遍不均匀减低，较前未见明显变化。</t>
+    <t>肺癌化疗后复查，对比2016-08-05片：_x0004_左下肺后段病变，考虑肿瘤播散可能性大，部分不除外阻塞性肺炎，较前缩小。_x0004_右肺下叶、左肺下叶前段、上叶背段、后基底段新发病变，考虑炎症。_x0004_纵隔、左肺门多发淋巴结，考虑转移瘤，较前稍缩小。_x0004_肝S4囊肿。肝S7/6病变，考虑海绵状血管瘤可能性大。_x0004_右肾结石。腹腔干旁淋巴结稍肿大，性质待定，建议随诊。_x0004_所见椎体密度普遍不均匀减低，较前未见明显变化。肺癌化疗后复查，对比2016-08-05片：_x0004_左肺下叶后段多支支气管远段管壁增厚，管腔狭窄，左下肺后段肺动脉分支管壁增厚，管腔未见充盈缺损，较前未见明显变化，沿支气管血管周围肺组织见多发斑点、斑片状高密度影，边界模糊，增强扫描见强化，较前缩小。右肺下叶、左肺下叶前段、上叶背段、后基底段见多发斑片状高密度灶，边界模糊不清。两下肺见多发斑片状无肺纹理透亮区，以左下肺为著，较前未见明显变化。_x0004_血管前、主肺动脉窗、左下上气管旁、右上气管旁、隆突上、左肺门见多发淋巴结，边界欠清，部分融合，增强扫描较明显不均匀强化，部分内见坏死，较前缩小，下腔静脉受压。_x0004_两侧胸腔未见积液；两侧胸膜增厚。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝S4见一低密度灶，边界尚清，大小约8MM×5MM，增强扫描强化不明显。肝S7/6见一结节，大小约为10MM×7MM，增强扫描动脉期、静脉期见明显强化，至延迟期强化程度与肝实质相近。胆囊大小正常，其内未见结石影；肝内胆管、胆总管未见扩张，其内未见结石影。_x0004_肝门区正常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见一点状致密灶，左肾及两肾下腺形态及密度未见明显异常。_x0004_腹腔干周围见一淋巴结，短径约为11MM，边界清楚，密度均匀，增强扫描见明显强化。膈脚后、胃右、腹主动脉旁未见肿大淋巴结。_x0004_所见椎体密度普遍不均匀减低，较前未见明显变化。</t>
   </si>
   <si>
     <t>肝内多发实质占位-考虑转移性MT，胆囊多发结石，腹水，脾肿大肝肋上斜切125MM/（－），剑上纵切62MM/2指，肝区回声稍增强增粗，肝内见多个低回声团块，边界欠清，最大约28MM×27MM，CDFI未见明显彩色血流，门脉主干内径10MM，左支内径8MM，流速0.20MM/s，主干及右左支血流通畅，为向肝血流，流速曲线正常，脾门处脾静脉内径5MM，血流通畅。肝静脉血流通畅。脾肋间切48MM/1指。胆囊68MM×28MM，内见数个强回声伴声影，最大17MM，胆总管4MM。胰头15MM，胰体12MM，胰尾15MM。CDFI肝胆胰血流正常。上腹部见75MM无回声区。</t>
@@ -4829,7 +4829,7 @@
     <t>左肺癌术后化疗后，下次所见左肺门区病灶已不明显。纵隔、肺门未见肿大淋巴结。左侧胸腔积液。左侧胸膜增厚。肝S8致密灶，考虑为肝内胆管结石。肾囊肿。左肺癌术后化疗后：左肺部分缺失，左侧胸膜增厚，左残肺及右肺纹理清晰，未见结节影。气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。两侧肺门及纵隔未见明确肿大淋巴结。左侧胸腔见少量积液。右侧胸腔未见积液。右侧胸膜未见增厚。肝脏形态未见异常，其外形轮廓光整，密度欠均匀肝S8可见小结节状致密灶。肝内胆管未见扩张。胆囊其内未见结石影。胆总管未见扩张，其内未见结石影。肝门区未见明确病变。门静脉未见异常。脾密度均匀。胰腺大小、形态未见异常，密度均匀。两肾可见囊性灶，长径为9MM。两肾下腺未见肿物。腹膜后未见肿大淋巴结。</t>
   </si>
   <si>
-    <t>左腮腺癌颈淋巴结转移纵隔治疗后病例：1.两侧颈部、锁骨区、肝门多发淋巴结转移；肝左叶及腰4椎、左肱骨转移。2.右侧筛窦、下颌窦炎。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。副鼻窦PET/CT图像示右下颌窦和筛窦粘膜增厚，软组织密度影增多伴糖代谢异常增高，最大SUV值约8.08；余副鼻窦和鼻咽部无殊。颈部PET/CT图像示左腮腺癌两颈淋巴结转移术后，颈部术区结构紊乱；两颈血管旁、左颌上、颏上、两锁骨区、气管旁、胸骨下窝多发糖代谢异常增高的肿大淋巴结，最大者约35.0MM×22.7MM，最大SUV值约16.90；口咽、喉咽部和甲状腺无殊。胸部PET图像示两肺野、肺门、纵隔、胸壁、腋窝等均未见明显糖代谢异常增高灶。CT平扫所示两肺纹理清晰，未见明显异常占位；所示各级支气管腔通畅；纵隔无明显肿大淋巴结，两肺门影不大；两侧胸膜无增厚；两侧胸腔无积液；心脏不大；两侧腋窝无明显肿大淋巴结。腹部PET/CT图像示肝左叶见一大小约30.5MM×23.4MM、糖代谢异常增高的类圆形低密度灶，最大SUV值约25.70，内部密度不均，边缘模糊；肝内外胆管扩张；肝门区见一直径约15.3MM、糖代谢异常增高的肿大淋巴结，最大SUV值约12.67；胆囊、胰、脾、两肾下腺、肾、输尿管无殊；胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；腹膜后无异常糖代谢增高和肿大淋巴结；腹腔无积液。盆部PET图像示膀胱放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈，壁光滑无增厚；子宫、两侧附件未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示腰4椎体内见一直径约20.3MM稍高密度结节，伴糖代谢异常增高，最大SUV值约13.70；左肱骨髓腔内软组织密度影伴糖代谢异常增高，最大SUV值为8.57；余骨未见异常糖代谢增高；CT定位片见颈胸腰骶椎顺列，颈椎生理曲度变平。</t>
+    <t>左腮腺癌颈淋巴结转移纵隔治疗后病例：1.两侧颈部、锁骨区、肝门多发淋巴结转移；肝左叶及腰4椎、左肱骨转移。_x0004_2.右侧筛窦、下颌窦炎。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。副鼻窦PET/CT图像示右下颌窦和筛窦粘膜增厚，软组织密度影增多伴糖代谢异常增高，最大SUV值约8.08；余副鼻窦和鼻咽部无殊。颈部PET/CT图像示左腮腺癌两颈淋巴结转移术后，颈部术区结构紊乱；两颈血管旁、左颌上、颏上、两锁骨区、气管旁、胸骨下窝多发糖代谢异常增高的肿大淋巴结，最大者约35.0MM×22.7MM，最大SUV值约16.90；口咽、喉咽部和甲状腺无殊。胸部PET图像示两肺野、肺门、纵隔、胸壁、腋窝等均未见明显糖代谢异常增高灶。CT平扫所示两肺纹理清晰，未见明显异常占位；所示各级支气管腔通畅；纵隔无明显肿大淋巴结，两肺门影不大；两侧胸膜无增厚；两侧胸腔无积液；心脏不大；两侧腋窝无明显肿大淋巴结。腹部PET/CT图像示肝左叶见一大小约30.5MM×23.4MM、糖代谢异常增高的类圆形低密度灶，最大SUV值约25.70，内部密度不均，边缘模糊；肝内外胆管扩张；肝门区见一直径约15.3MM、糖代谢异常增高的肿大淋巴结，最大SUV值约12.67；胆囊、胰、脾、两肾下腺、肾、输尿管无殊；胃壁均匀性轻度生理性糖代谢增强；肠道呈线型生理性糖代谢增强；腹膜后无异常糖代谢增高和肿大淋巴结；腹腔无积液。盆部PET图像示膀胱放射性生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈，壁光滑无增厚；子宫、两侧附件未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示腰4椎体内见一直径约20.3MM稍高密度结节，伴糖代谢异常增高，最大SUV值约13.70；左肱骨髓腔内软组织密度影伴糖代谢异常增高，最大SUV值为8.57；余骨未见异常糖代谢增高；CT定位片见颈胸腰骶椎顺列，颈椎生理曲度变平。</t>
   </si>
   <si>
     <t>左腮腺</t>
@@ -4838,7 +4838,7 @@
     <t>颈淋巴结,两侧颈部,锁骨区,肝门多发淋巴结,肝左叶,腰4椎,左肱骨</t>
   </si>
   <si>
-    <t>右肺下叶尖后段病灶，考虑周围型肺癌可能性大。甲状腺两侧叶多发病灶，考虑结节性甲状腺肿。肝S2、S6低密度灶，考虑囊肿。两肺纹理清晰，右肺下叶尖后段紧邻纵隔旁见一片状高密度影，边缘毛糙，可见分叶及毛刺，牵拉邻近右下肺胸膜，范围约18MM×12MM，增强扫描不均匀轻度强化，余肺内未见明显病变。气管及支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧腋窝未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜无增厚、粘连。心包未见积液。扫描层面甲状腺两侧叶见多个低密度灶，边界欠清，较大者约11MM×10MM，密度不均匀，增强扫描轻度强化。扫描层面肝S2、S6见数个类圆形低密度灶，边界尚清，较大者直径约7MM，增强扫描未见明显强化。扫描范围内骨质未见破坏征象。</t>
+    <t>右肺下叶尖后段病灶，考虑周围型肺癌可能性大。_x0004_甲状腺两侧叶多发病灶，考虑结节性甲状腺肿。_x0004_肝S2、S6低密度灶，考虑囊肿。两肺纹理清晰，右肺下叶尖后段紧邻纵隔旁见一片状高密度影，边缘毛糙，可见分叶及毛刺，牵拉邻近右下肺胸膜，范围约18MM×12MM，增强扫描不均匀轻度强化，余肺内未见明显病变。_x0004_气管及支气管分支通畅。_x0004_两肺门及纵隔未见明显肿大淋巴结。两侧腋窝未见明显肿大淋巴结。_x0004_两侧胸腔未见积液。两侧胸膜无增厚、粘连。_x0004_心包未见积液。_x0004_扫描层面甲状腺两侧叶见多个低密度灶，边界欠清，较大者约11MM×10MM，密度不均匀，增强扫描轻度强化。_x0004_扫描层面肝S2、S6见数个类圆形低密度灶，边界尚清，较大者直径约7MM，增强扫描未见明显强化。_x0004_扫描范围内骨质未见破坏征象。</t>
   </si>
   <si>
     <t>18MM×12MM</t>
@@ -4847,7 +4847,7 @@
     <t>脂肪肝；两侧颈部淋巴结甲状腺左叶45MM×18MM×14MM，甲状腺右叶40MM×17MM×13MM，峡部2MM。甲状腺内部回声均匀，甲状腺内血流分布正常。颈部左侧甲状腺下动脉血流通畅，PSV0.24MM/s，RI0.60。颈部右侧甲状腺下动脉血流通畅，PSV0.23MM/s，RI0.61。两侧颌上、两侧颈血管旁见数枚低回声区，左侧最大11MM×4MM，右侧最大13MM×3MM，两侧锁骨下未见明显肿块回声。CDFI未见异常血流。肝肋上斜切122MM/（－），剑上纵切65MM/2指，肝区回声密集增强，门脉主干内径13MM，左支内径9MM，流速0.27MM/s，主干及右左支血流通畅，为向肝血流，流速曲线正常，脾门处脾静脉内径5MM，血流通畅。肝静脉血流通畅。脾肋间切28MM/（－）。胆囊67MM×19MM，胆总管4MM。胰头14MM，胰体12MM，胰尾15MM。左肾106MM×52MM×50MM，肾盂分离(-)，右肾105MM×57MM×51MM，肾盂分离(-)。两侧输尿管未见明显扩张。CDFI肝胆胰肾血流正常。</t>
   </si>
   <si>
-    <t>左下肺癌术后复查：左下肺支气管残端及术区软组织灶，术后改变可能，建议随诊复查。左侧肺门淋巴结，可疑转移，建议密切随诊。纵隔小淋巴结，性质待定，建议随诊。左侧液气胸。左侧胸膜稍增厚。肝S4稍低密度灶，性质待定，建议随诊复查或MR检查。肝S5、S8小结节低密度灶，肝囊肿可能。左侧第6肋术后改变。左下肺癌术后复查：左下肺术后部分缺失，术区及支气管残端见致密吻合线影，局部见少许条片稍低密度影，边界欠清，轻度强化。左侧胸腔见不规则积气及积液。左侧胸膜稍增厚。右肺纹理清晰，肺内未见实质性病变。气管及余支气管分支未见明确受压、阻塞。左侧肺门见淋巴结（Se4-30），短径约8MM，增强扫描均匀较明显环形强化。左下气管旁、右上气管旁见小淋巴结，边界清，短径约5MM，均匀强化，右肺门未见肿大淋巴结。右侧胸膜未见增厚，右侧胸腔未见积液。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。肝S5、S8见一类圆形低密度灶，直径约4MM，边界清楚，未见明显强化。肝S4见一小结节稍低密度灶（Se9-229），边界清，最大短径约7MM，增强扫描后似见环形强化。肝内胆管、胆总管未见扩张，其内未见结石，胆囊大小正常，其内未见结石。肝门区未见异常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾、两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见明显肿大淋巴结。左侧第6肋呈术后改变，余扫描所见骨质未见破坏征象。</t>
+    <t>左下肺癌术后复查：_x0004_左下肺支气管残端及术区软组织灶，术后改变可能，建议随诊复查。_x0004_左侧肺门淋巴结，可疑转移，建议密切随诊。_x0004_纵隔小淋巴结，性质待定，建议随诊。_x0004_左侧液气胸。_x0004_左侧胸膜稍增厚。_x0004_肝S4稍低密度灶，性质待定，建议随诊复查或MR检查。_x0004_肝S5、S8小结节低密度灶，肝囊肿可能。左侧第6肋术后改变。左下肺癌术后复查：_x0004_左下肺术后部分缺失，术区及支气管残端见致密吻合线影，局部见少许条片稍低密度影，边界欠清，轻度强化。左侧胸腔见不规则积气及积液。左侧胸膜稍增厚。_x0004_右肺纹理清晰，肺内未见实质性病变。_x0004_气管及余支气管分支未见明确受压、阻塞。_x0004_左侧肺门见淋巴结（Se4-30），短径约8MM，增强扫描均匀较明显环形强化。左下气管旁、右上气管旁见小淋巴结，边界清，短径约5MM，均匀强化，右肺门未见肿大淋巴结。_x0004_右侧胸膜未见增厚，右侧胸腔未见积液。_x0004_肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。肝S5、S8见一类圆形低密度灶，直径约4MM，边界清楚，未见明显强化。肝S4见一小结节稍低密度灶（Se9-229），边界清，最大短径约7MM，增强扫描后似见环形强化。_x0004_肝内胆管、胆总管未见扩张，其内未见结石，胆囊大小正常，其内未见结石。肝门区未见异常。门静脉未见异常。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾、两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见明显肿大淋巴结。_x0004_左侧第6肋呈术后改变，余扫描所见骨质未见破坏征象。</t>
   </si>
   <si>
     <t>左侧肺门淋巴结</t>
@@ -4880,7 +4880,7 @@
     <t>肾盂癌术后、化疗后，与2015-3-25片对比：术区未见明确肿瘤复发征象；脂肪肝；左肺下叶尖段条索、类结节影，考虑增殖灶，较前相仿；右肺上叶后基底段小结节，较前相仿，考虑增殖灶可能性大；右锁骨下窝、纵隔小淋巴结，较前未见明显变化；左心房内充盈缺损影，较前未见明显变化；甲状腺两叶病灶，考虑结节性甲状腺肿；腰1椎体压缩性骨折，大致同前。肾盂癌术后、化疗后，与2015-3-25片对比：右肾术后缺失，局部未见明确软组织肿物。左肾及两侧肾下腺未见异常。肝脏形态、比例正常，轮廓光整，肝实质密度普遍减低，未见明显异常强化。肝内外胆管无扩张，胆囊不大，胆总管未见扩张，未见结石影。肝门区及门静脉未见明显异常。脾脏及胰腺大小、形态、密度未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。子宫大小、形态未见明显异常，子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。两侧腹股沟区、髂血管旁未见肿大淋巴结。两肺纹理清晰，左肺下叶尖段见条索、类结节影，大者直径约3MM，边界清楚，边缘不规整，与邻近胸膜牵拉粘连，大致同前。右肺上叶后基底段见一小结节，直径约为3MM，边界清楚，边缘规整，较前相仿。气管及支气管分支通畅。右锁骨下窝、左上气管旁、主动脉旁见数个小淋巴结，最大约6MM×8MM，边界清楚，较前未见明显变化。两侧胸腔未见积液。两侧胸膜未见增厚、粘连。左心房充盈欠佳，内见少许低密度影，未见明显强化，较前未见明显变化。扫描层面内甲状腺两叶见多个结节状低密度病灶，最大者约为8MM×11MM，增强后轻度强化或强化不明显，较前相仿。腰1椎体变扁呈楔形，椎体内见散在斑点斑块状致密影。余骨质未见明确破坏征象。</t>
   </si>
   <si>
-    <t>食管癌放化疗后，对比2016-4-7CT：颈段及部分胸下段局限性增厚，较前稍缩小，强化程度减退。左侧气管食管沟肿大淋巴结，考虑转移，较前稍缩小。两肺下叶纵隔旁新见斑片灶，考虑放射性炎症可能大。下腹部未见明确病变。两颈II区~V区数个小淋巴结，考虑反应性淋巴结可能大，大致同前。左侧下颌窦炎。食管癌放化疗后，对比2016-4-7CT：颈段及部分胸下段食管局限性管壁增厚，最厚约12MM，纵径约30MM，局部管腔狭窄，增强后较明显强化，较前缩小；病灶部分与气管后缘分界欠清楚，邻近左侧气管食管沟见肿大淋巴结，最大约12MM×14MM，与病灶分界不清，增强后较明显强化。两肺下叶纵隔旁新见少许斑片灶，边界欠清，余肺纹理清晰，肺内未见实质性病变。余纵隔及两肺门未见明确肿大淋巴结，气管及支气管分支通畅。两侧胸腔未见积液。两侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整。肝实质密度均匀，增强后未见异常强化，肝门区正常。门静脉主干及其分支未见异常。胆囊大小正常，其内未见结石，胆总管未见扩张，其内未见结石。胰腺、脾脏大小、形态正常，密度均匀，增强后未见异常强化灶。两肾及两肾下腺形态、大小、密度未见异常。胃右血管旁、腹腔干、腹主动脉未见明确肿大淋巴结。颈部结构清晰，各血管充盈良好。甲状腺两叶及峡部形态正常，密度均匀。喉咽腔形态正常，两侧真假声带未见增厚，前联合未见增厚，梨状窝对称。两侧颌上腺、腮腺大小形态正常，密度均匀。颈部肌群排列对称，密度均匀，肌间隙未见明显异常。两颈II区~V区见数个小淋巴结，最大约9MM×8MM，边界清，密度均匀，增强后均匀强化。扫描所见左侧下颌窦粘膜增厚。扫描所见骨质未见明确破坏征象。</t>
+    <t>食管癌放化疗后，对比2016-4-7CT：_x0004_颈段及部分胸下段局限性增厚，较前稍缩小，强化程度减退。_x0004_左侧气管食管沟肿大淋巴结，考虑转移，较前稍缩小。_x0004_两肺下叶纵隔旁新见斑片灶，考虑放射性炎症可能大。_x0004_下腹部未见明确病变。_x0004_两颈II区~V区数个小淋巴结，考虑反应性淋巴结可能大，大致同前。_x0004_左侧下颌窦炎。食管癌放化疗后，对比2016-4-7CT：颈段及部分胸下段食管局限性管壁增厚，最厚约12MM,纵径约30MM，局部管腔狭窄，增强后较明显强化，较前缩小；病灶部分与气管后缘分界欠清楚，邻近左侧气管食管沟见肿大淋巴结，最大约12MM×14MM，与病灶分界不清，增强后较明显强化。_x0004_两肺下叶纵隔旁新见少许斑片灶，边界欠清，余肺纹理清晰，肺内未见实质性病变。余纵隔及两肺门未见明确肿大淋巴结，气管及支气管分支通畅。两侧胸腔未见积液。两侧胸膜无增厚、粘连。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整。肝实质密度均匀，增强后未见异常强化，肝门区正常。门静脉主干及其分支未见异常。胆囊大小正常，其内未见结石，胆总管未见扩张，其内未见结石。胰腺、脾脏大小、形态正常，密度均匀，增强后未见异常强化灶。两肾及两肾下腺形态、大小、密度未见异常。_x0004_胃右血管旁、腹腔干、腹主动脉未见明确肿大淋巴结。_x0004_颈部结构清晰，各血管充盈良好。甲状腺两叶及峡部形态正常，密度均匀。喉咽腔形态正常，两侧真假声带未见增厚，前联合未见增厚，梨状窝对称。两侧颌上腺、腮腺大小形态正常，密度均匀。颈部肌群排列对称，密度均匀，肌间隙未见明显异常。_x0004_两颈II区~V区见数个小淋巴结，最大约9MM×8MM，边界清，密度均匀，增强后均匀强化。扫描所见左侧下颌窦粘膜增厚。_x0004_扫描所见骨质未见明确破坏征象。</t>
   </si>
   <si>
     <t>颈段及部分胸下段食管</t>
@@ -4907,16 +4907,16 @@
     <t>55MM×48MM</t>
   </si>
   <si>
-    <t>左肺上叶后基底肿块，较前稍增大。左肺上叶后基底段2个结节，考虑转移瘤，较前稍增大。左上肺外基底段胸膜结节，炎症与转移瘤鉴别，转移瘤可能性大。左胸腔积液较前减少。左中肺节段性肺不张。两肺斑片状、类结节状影，考虑炎症，较前增多。右肺类结节及条索灶，考虑纤维增殖灶，较前未见明显变化。两肺肺气肿。肝多发小囊肿。两肾囊肿。脊柱侧弯。胸椎退行性改变。肺癌放化疗后，与2017-06-05CT对比：左肺上叶后基底段见一肿块，边界欠清，大小约46MM×33MM，内密度不均，见斑点状、小片状钙化灶，增强后轻度强化，较前增大。左肺上叶后基底段另见2个结节，边界欠清，大者大小约31MM×20MM，不均匀轻度强化，较前稍增大。左上肺外基底段胸膜见一结节影，大小约11MM×7MM。左中肺见片状高密度影，边界清，内见支气管气象。两肺见斑片状、类结节状高密度影，边界不清，较前增多。右肺下叶尖后段及上叶见多发散在的类结节及条索灶，边界清，较前未见明显变化。两下肺见多发无肺纹理透亮区，边界清。两侧胸膜稍增厚。左肺上叶支气管分支变窄中断，气管及余支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。左侧胸腔见少量积液。右侧胸腔未见积液。心包未见积液。所见肝内见多发低密度灶，直径约2MM~5MM，未见强化。所见两肾见多发囊性灶，较大直径约24MM，未见强化。腰椎向右侧弯，多个胸椎边缘骨质增生，部分见骨赘形成，未见明确骨质破坏征象。</t>
+    <t>左肺上叶后基底肿块，较前稍增大。_x0004_左肺上叶后基底段2个结节，考虑转移瘤，较前稍增大。_x0004_左上肺外基底段胸膜结节，炎症与转移瘤鉴别，转移瘤可能性大。_x0004_左胸腔积液较前减少。左中肺节段性肺不张。_x0004_两肺斑片状、类结节状影，考虑炎症，较前增多。_x0004_右肺类结节及条索灶，考虑纤维增殖灶，较前未见明显变化。_x0004_两肺肺气肿。肝多发小囊肿。两肾囊肿。_x0004_脊柱侧弯。胸椎退行性改变。肺癌放化疗后，与2017-06-05CT对比：_x0004_左肺上叶后基底段见一肿块，边界欠清，大小约46MM×33MM，内密度不均，见斑点状、小片状钙化灶，增强后轻度强化，较前增大。左肺上叶后基底段另见2个结节，边界欠清，大者大小约31MM×20MM，不均匀轻度强化，较前稍增大。左上肺外基底段胸膜见一结节影，大小约11MM×7MM。左中肺见片状高密度影，边界清，内见支气管气象。两肺见斑片状、类结节状高密度影，边界不清，较前增多。右肺下叶尖后段及上叶见多发散在的类结节及条索灶，边界清，较前未见明显变化。两下肺见多发无肺纹理透亮区，边界清。两侧胸膜稍增厚。_x0004_左肺上叶支气管分支变窄中断，气管及余支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。左侧胸腔见少量积液。右侧胸腔未见积液。心包未见积液。_x0004_所见肝内见多发低密度灶，直径约2MM~5MM，未见强化。所见两肾见多发囊性灶，较大直径约24MM，未见强化。_x0004_腰椎向右侧弯，多个胸椎边缘骨质增生，部分见骨赘形成，未见明确骨质破坏征象。</t>
   </si>
   <si>
     <t>左肺上叶后基底段,左上肺外基底段胸膜结节</t>
   </si>
   <si>
-    <t>轻度肺动脉高压常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，28，20-37，右房内径，32，19-40，右室舒张末内径，43，35-56，右室收缩末内径，23，23-35，室间隔厚度，9，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，连续多普勒据轻度三尖瓣反流估测肺动脉收缩压为40MMHg。，三、右心功能测定：，FS：46%；LVEF：77%；二尖瓣血流图示E/A，&amp;gt；，1；DT：170MMs，四、组织多普勒测定：，DTI示S波峰值：10CM/s；E'/A'，&amp;gt；，1，五、结论：，</t>
-  </si>
-  <si>
-    <t>甲状腺右叶中部背侧实质占位伴钙化-考虑MT可能，甲状腺两侧叶占位-考虑腺瘤及增生结节甲状腺左叶44MM×14MM×16MM，内见数个低回声及混合回声团块，部分内见点状强回声，最大13MM×8MM，CDFI大者周边见线状彩色血流。甲状腺右叶42MM×13MM×15MM，中部近背侧见7MM×8MM低回声团块，形态不规则，纵横比&amp;gt；1，内见数枚点状强回声，CDFI周边见短线状彩色血流，RI0.50；上极另见11MM×6MM低回声团块，边界清，CDFI周边见线状彩色血流。峡部2MM。甲状腺内血流分布正常。颈部左侧甲状腺下动脉血流通畅，PSV0.15MM/s，RI0.62。颈部右侧甲状腺下动脉血流通畅，PSV0.21MM/s，RI0.57。</t>
+    <t>轻度肺动脉高压常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,28,20-37,右房内径,32,19-40,右室舒张末内径,43,35-56,右室收缩末内径,23,23-35,室间隔厚度,9,6-11,右室后壁厚度,8,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。,3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。,4、左房室不大，肺动脉不增宽，连续多普勒据轻度三尖瓣反流估测肺动脉收缩压为40MMHg。,三、右心功能测定：,FS:46%;LVEF:77%；二尖瓣血流图示E/A,&amp;gt;,1;DT:170MMs,四、组织多普勒测定：,DTI示S波峰值:10CM/s;E'/A',&amp;gt;,1,五、结论：,</t>
+  </si>
+  <si>
+    <t>甲状腺右叶中部背侧实质占位伴钙化-考虑MT可能，甲状腺两侧叶占位-考虑腺瘤及增生结节甲状腺左叶44MM×14MM×16MM，内见数个低回声及混合回声团块，部分内见点状强回声，最大13MM×8MM，CDFI大者周边见线状彩色血流。甲状腺右叶42MM×13MM×15MM，中部近背侧见7MM×8MM低回声团块，形态不规则，纵横比&amp;gt;1，内见数枚点状强回声，CDFI周边见短线状彩色血流，RI0.50；上极另见11MM×6MM低回声团块，边界清，CDFI周边见线状彩色血流。峡部2MM。甲状腺内血流分布正常。颈部左侧甲状腺下动脉血流通畅，PSV0.15MM/s，RI0.62。颈部右侧甲状腺下动脉血流通畅，PSV0.21MM/s，RI0.57。</t>
   </si>
   <si>
     <t>甲状腺右叶中部背侧</t>
@@ -4934,16 +4934,16 @@
     <t>腹腔,腹主动脉旁,右侧髂总动脉旁,膀胱直肠窝,两肺上叶,肝右外叶,脾门区,右肾下极</t>
   </si>
   <si>
-    <t>前列腺增大肝脏、胆囊、脾脏、胰腺、两肾、膀胱未见明显占位病变声像。两侧输尿管未见明确扩张。腹主动脉旁未见明确占位病变。肝脏大小、形态正常，包膜光滑，实质回声均匀，血管走行清晰、自然，肝内胆管不扩张，未见明显肿物回声。CDFI：肝动脉、门静脉血流通畅，为向肝血流信号，充盈良好，肝内未见明确异常血流信号。门静脉内径8MM，最大血流速度约22CM/s。胆囊大小形态正常，囊壁不厚，胆囊内未见明显异常回声。脾脏大小形态正常，包膜光滑，实质回声均匀，未见明显异常回声。胰腺大小形态正常，实质回声均匀，未见明显异常回声。两肾大小形态正常，实质回声均匀，未见明显异常回声。CDFI：两肾血流呈珊瑚状，未见明确异常血流信号。两侧输尿管未见明确扩张。膀胱充盈良好，膀胱壁光滑，不厚，膀胱腔内未见明确肿物回声。前列腺大小形态正常，大小约47MM×42MM×40MM，包膜光滑，实质回声均匀，未见明确肿物回声。腹主动脉旁未见明确肿物回声。</t>
-  </si>
-  <si>
-    <t>右肺癌综合治疗后，与2016-07-25片对比：右残肺少许纤维增殖灶，大致同前。左肺数个小类结节灶，较前变化不大。右锁下、纵隔数个淋巴结，较前变化不大。右侧胸腔少量积液，右侧胸膜稍增厚，大致同前。甲状腺右叶病灶，考虑结节性甲状腺肿，大致同前。肝S2、7小囊肿。胆囊结石。右肾囊肿。胸10椎体右侧稍高密度灶，较前相仿，性质待定，建议复查。右肺癌综合治疗后，与2016-07-25片对比：右肺下叶术后缺失，右下肺支气管残端未见明确肿物。右肺上叶见少许纤维条索，边界清晰，未见明确结节影。左肺见数个类结节，较大者直径约3MM，边界清，较前未见明显变化。气管及支气管分支通畅。右侧锁骨下、血管前、左下上气管旁见多个淋巴结，最大者短径约9MM，边界清，密增强后见较明显强化，较前未见明显变化。右侧胸腔见少量积液同前。左侧胸腔未见积液。右上胸膜稍增厚，大致同前。扫描所见甲状腺右叶见2个结节，较大者约14MM×12MM，边界清晰，未见强化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S2、S7肝左静脉旁见囊性灶，直径约3MM，边界清楚，增强后未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，胆囊底部内见小结石影，胆总管未见扩张，其内未见结石影。肝门区正常；门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见一囊性灶，大小约7MM×4MM，边界清，增强扫描未见强化，左肾、两肾下腺未见异常。腹主动脉旁未见肿大淋巴结。胸10椎体右侧见一稍高密度灶，直径约2MM，边界清，较前相仿。余扫描层面未见明确骨质破坏征象。</t>
+    <t>前列腺增大_x0004__x0004_肝脏、胆囊、脾脏、胰腺、两肾、膀胱未见明显占位病变声像。_x0004__x0004_两侧输尿管未见明确扩张。_x0004__x0004_腹主动脉旁未见明确占位病变。_x0004__x0004_肝脏大小、形态正常，包膜光滑，实质回声均匀，血管走行清晰、自然，肝内胆管不扩张，未见明显肿物回声。_x0004__x0004_CDFI：肝动脉、门静脉血流通畅，为向肝血流信号，充盈良好，肝内未见明确异常血流信号。门静脉内径8MM，最大血流速度约22CM/s。_x0004__x0004_胆囊大小形态正常，囊壁不厚，胆囊内未见明显异常回声。_x0004__x0004_脾脏大小形态正常，包膜光滑，实质回声均匀，未见明显异常回声。_x0004__x0004_胰腺大小形态正常，实质回声均匀，未见明显异常回声。_x0004__x0004_两肾大小形态正常，实质回声均匀，未见明显异常回声。_x0004__x0004_CDFI：两肾血流呈珊瑚状，未见明确异常血流信号。_x0004__x0004_两侧输尿管未见明确扩张。_x0004__x0004_膀胱充盈良好，膀胱壁光滑，不厚，膀胱腔内未见明确肿物回声。_x0004__x0004_前列腺大小形态正常，大小约47MM×42MM×40MM，包膜光滑，实质回声均匀，未见明确肿物回声。_x0004__x0004_腹主动脉旁未见明确肿物回声。_x0004__x0004_</t>
+  </si>
+  <si>
+    <t>右肺癌综合治疗后，与2016-07-25片对比：右残肺少许纤维增殖灶，大致同前。_x0004_左肺数个小类结节灶，较前变化不大。_x0004_右锁下、纵隔数个淋巴结，较前变化不大。_x0004_右侧胸腔少量积液，右侧胸膜稍增厚，大致同前。_x0004_甲状腺右叶病灶，考虑结节性甲状腺肿，大致同前。_x0004_肝S2、7小囊肿。胆囊结石。右肾囊肿。_x0004_胸10椎体右侧稍高密度灶，较前相仿，性质待定，建议复查。右肺癌综合治疗后，与2016-07-25片对比：_x0004_右肺下叶术后缺失，右下肺支气管残端未见明确肿物。右肺上叶见少许纤维条索，边界清晰，未见明确结节影。左肺见数个类结节，较大者直径约3MM，边界清，较前未见明显变化。_x0004_气管及支气管分支通畅。_x0004_右侧锁骨下、血管前、左下上气管旁见多个淋巴结，最大者短径约9MM，边界清，密增强后见较明显强化，较前未见明显变化。_x0004_右侧胸腔见少量积液同前。左侧胸腔未见积液。右上胸膜稍增厚，大致同前。_x0004_扫描所见甲状腺右叶见2个结节，较大者约14MM×12MM，边界清晰，未见强化。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S2、S7肝左静脉旁见囊性灶，直径约3MM，边界清楚，增强后未见强化。_x0004_肝内胆管正常，其内未见结石影，胆囊大小正常，胆囊底部内见小结石影，胆总管未见扩张，其内未见结石影。肝门区正常；门静脉未见异常。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。_x0004_右肾见一囊性灶，大小约7MM×4MM，边界清，增强扫描未见强化，左肾、两肾下腺未见异常。_x0004_腹主动脉旁未见肿大淋巴结。_x0004_胸10椎体右侧见一稍高密度灶，直径约2MM，边界清，较前相仿。余扫描层面未见明确骨质破坏征象。</t>
   </si>
   <si>
     <t>脂肪肝，胆囊结石，两侧颈部见淋巴结，右侧乳腺退化不全，右侧腋窝见淋巴结肝肋上斜切118MM/（－），剑上纵切60MM/2指，肝区回声密集增强，门脉主干内径10MM。脾肋间切32MM/（－）。胆囊61MM×23MM，内见数枚强回声团块伴声影，最大约15MM，胆总管5MM。胰头15MM，胰体11MM，胰尾13MM。左肾102MM×43MM×45MM，肾盂分离（－），右肾112MM×42MM×44MM，肾盂分离（－）。两侧输尿管未见明显扩张。两侧肾下腺区未见明显肿块回声。CDFI肝胰肾血流正常。两侧颌上、两侧颈血管旁见数枚低回声区，左侧最大11MM×5MM，右侧最大12MM×6MM，两侧锁骨下未见明显肿块回声。CDFI未见异常血流。两侧颌上腺、腮腺内部回声均匀，未见明显肿块回声。颏上区未见明显肿块回声。CDFI未见异常彩色血流。左侧乳腺未显示。右侧乳腺导管增多，腺体结构尚正常，未见明显肿块回声。彩色多普勒示其内未见异常彩色血流。右侧腋窝见数个低回声区，最大10MM×4MM，CDFI未见明显彩色血流。左侧腋窝未见明显肿块。CDFI示血流分布尚正常。</t>
   </si>
   <si>
-    <t>肺癌化疗后复查，较2017-06-05CT片对比：右肺上叶背段病灶，符合肺癌，较前稍增大。右肺上叶阻塞性肺炎。右肺下叶舌段小片状灶，炎症可能，较前变化不大，建议复查。左肺、右肺下叶纤维增殖钙化灶。隆突上、右肺门、右上肺叶间多发淋巴结肿大，考虑转移，较前相似。肝右外叶与腹壁间隙结节，考虑转移淋巴结可能性大，较前稍增大。肝S7包膜上结节钙化灶。左肾下腺病灶，考虑转移瘤，较前稍增大。右肾结石。肺癌化疗后复查，较2017-06-05CT片对比：右肺上叶背段见一软组织团块，边界尚清，范围约66MM×42MM，呈分叶状，密度不均匀，内见钙化，增强扫描呈明显不均匀强化，累及邻近胸膜，较前增大；邻近右上肺背段、后基底段可见条状、斑片状影，边界不清，较前变化不大。右肺下叶舌段见斑片状灶，边界欠清，可见强化，较前变化不大。两肺下叶、左肺中叶、左肺上叶外基底段可见多发结节状致密灶，边界尚清，周围见多发索条状影，部分与胸膜粘连，较前相仿。气管及其余支气管尚通畅。隆突上、右肺门、右上肺叶间可见多发肿大淋巴结，边界欠清，部分相互融合，大者范围约32MM×30MM，部分内见钙化，增强呈不均匀强化，包绕挤压右上肺支气管，管腔变窄。右侧第6后肋受压。左侧胸膜未见增厚、粘连。两侧胸腔未见积液。肝右外叶与腹壁间隙见一结节，大小约30MM×16MM，边界清，呈不均匀强化，较前稍增大。肝脏形态正常，各叶比例尚可，其外形轮廓光整，肝S7边缘见一致密灶，边界清楚，直径约2MM，余肝实质密度均匀，未见异常强化表现。肝内胆管及胆总管未见扩张，其内未见结石影。胆囊不大，未见结石。肝门区结构未见异常。门静脉主干及分支未见充盈缺损。脾、胰腺大小、形态正常，密度均匀。右肾盂见致密灶。左肾下腺见一结节，大小约20MM×16MM，边界尚清，强化不均匀，较前稍增大。左肾及右肾下腺未见明确异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围内骨质结构未见破坏征象。</t>
+    <t>肺癌化疗后复查，较2017-06-05CT片对比：_x0004_右肺上叶背段病灶，符合肺癌，较前稍增大。右肺上叶阻塞性肺炎。_x0004_右肺下叶舌段小片状灶，炎症可能，较前变化不大，建议复查。_x0004_左肺、右肺下叶纤维增殖钙化灶。_x0004_隆突上、右肺门、右上肺叶间多发淋巴结肿大，考虑转移，较前相似。_x0004_肝右外叶与腹壁间隙结节，考虑转移淋巴结可能性大，较前稍增大。_x0004_肝S7包膜上结节钙化灶。_x0004_左肾下腺病灶，考虑转移瘤，较前稍增大。右肾结石。肺癌化疗后复查，较2017-06-05CT片对比：_x0004_右肺上叶背段见一软组织团块，边界尚清，范围约66MM×42MM，呈分叶状，密度不均匀，内见钙化，增强扫描呈明显不均匀强化，累及邻近胸膜，较前增大；邻近右上肺背段、后基底段可见条状、斑片状影，边界不清，较前变化不大。_x0004_右肺下叶舌段见斑片状灶，边界欠清，可见强化，较前变化不大。_x0004_两肺下叶、左肺中叶、左肺上叶外基底段可见多发结节状致密灶，边界尚清，周围见多发索条状影，部分与胸膜粘连，较前相仿。气管及其余支气管尚通畅。_x0004_隆突上、右肺门、右上肺叶间可见多发肿大淋巴结，边界欠清，部分相互融合，大者范围约32MM×30MM，部分内见钙化，增强呈不均匀强化，包绕挤压右上肺支气管，管腔变窄。右侧第6后肋受压。左侧胸膜未见增厚、粘连。两侧胸腔未见积液。_x0004_肝右外叶与腹壁间隙见一结节，大小约30MM×16MM，边界清，呈不均匀强化，较前稍增大。_x0004_肝脏形态正常，各叶比例尚可，其外形轮廓光整，肝S7边缘见一致密灶，边界清楚，直径约2MM，余肝实质密度均匀，未见异常强化表现。_x0004_肝内胆管及胆总管未见扩张，其内未见结石影。胆囊不大，未见结石。_x0004_肝门区结构未见异常。门静脉主干及分支未见充盈缺损。_x0004_脾、胰腺大小、形态正常，密度均匀。_x0004_右肾盂见致密灶。左肾下腺见一结节，大小约20MM×16MM，边界尚清，强化不均匀，较前稍增大。左肾及右肾下腺未见明确异常。_x0004_膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_扫描范围内骨质结构未见破坏征象。</t>
   </si>
   <si>
     <t>66MM×42MM</t>
@@ -4958,10 +4958,10 @@
     <t>纵隔2R,3A,4R区及左肺门多发淋巴结,左侧胸膜,左侧胸膜区,左4前肋,L5,左髋臼骨</t>
   </si>
   <si>
-    <t>左侧基底节区、两侧海马内多个小囊性灶，考虑扩大的血管周围间隙。两侧额叶小斑点状异常信号灶，考虑脑缺血灶。左侧基底节区、两侧海马内见多个小类圆形囊性灶，直径约1MM~3MM，T1WI呈低信号，T2WI呈高信号，T2FLAIR低信号，增强后未见强化。两侧额叶白质内见小斑点状异常信号灶，T1WI呈等信号，T2WI及FLAIR呈稍高信号，增强扫描未见强化。两侧中脑大小不对称，左侧较右侧稍小，未见明显异常信号灶。小脑及余脑干形态正常，信号均匀，增强后亦未见异常信号区。各脑室及脑池大小、形态未见异常。大脑中线结构未见移位，未见占位性病变。颅骨骨质未见破坏。</t>
-  </si>
-  <si>
-    <t>心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号心功能正常心超声检测值：LA   27MM       AO     27MM        MV E 0.60MM/s     EF 62%LV   41MM       IVS     9MM           A 0.51MM/s     FS 33% RA   33MM       LVPW    7MMRV   21MM       PA     19MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图未见异常。</t>
+    <t>左侧基底节区、两侧海马内多个小囊性灶，考虑扩大的血管周围间隙。_x0004_两侧额叶小斑点状异常信号灶，考虑脑缺血灶。左侧基底节区、两侧海马内见多个小类圆形囊性灶，直径约1MM~3MM，T1WI呈低信号，T2WI呈高信号，T2FLAIR低信号，增强后未见强化。_x0004_两侧额叶白质内见小斑点状异常信号灶，T1WI呈等信号，T2WI及FLAIR呈稍高信号，增强扫描未见强化。_x0004_两侧中脑大小不对称，左侧较右侧稍小，未见明显异常信号灶。_x0004_小脑及余脑干形态正常，信号均匀，增强后亦未见异常信号区。_x0004_各脑室及脑池大小、形态未见异常。_x0004_大脑中线结构未见移位，未见占位性病变。_x0004_颅骨骨质未见破坏。_x0004_</t>
+  </si>
+  <si>
+    <t>心脏结构及运动未见异常_x0004__x0004_各房室腔及大血管未探及异常血流信号_x0004__x0004_心功能正常心超声检测值：_x0004__x0004_LA   27MMAO     27MMV E 0.60MM/s     EF 62%_x0004__x0004_LV   41MMIVS     9MMA 0.51m/s     FS 33% _x0004__x0004_RA   33MMLVPW    7MM_x0004__x0004_RV   21MMPA     19MM_x0004__x0004__x0004__x0004_二维及Ｍ型超声心动图特征：_x0004__x0004_升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；_x0004__x0004_各房室腔径正常。_x0004__x0004_室壁厚度及运动正常。房、室间隔连续性完好。_x0004__x0004_各组瓣膜形态、结构及运动正常。_x0004__x0004_心包及心包腔未见异常。_x0004__x0004_彩色及频谱多普勒超声心动图未见异常。</t>
   </si>
   <si>
     <t>C7-T4椎体转移瘤，T1椎体病理性骨折可能大，请结合临床、对比原片。胸椎退变。T10-11水平黄韧带肥厚。T9-11水平椎管内局部血管扭曲强化，请结合临床。胸椎生理曲度存在，部分椎体缘骨质增生变尖，扫描范围所见C7-T4椎体及部分椎弓、棘突信号不均，增强扫描后见片状明显强化，T1椎体变扁，C7-T1水平棘突周围软组织可见结节状、条片状长T2信号，局部蔓延至C7-T1水平椎管内硬膜外，增强扫描明显强化。部分椎体可见斑点状、小片状高信号影（脂肪沉积）。椎间盘未见突出及膨出信号影，T10-11水平黄韧带肥厚，压迫硬膜囊。增强扫描胸髓未见异常信号影，T9-11水平椎管内硬膜囊上扭曲强化血管影。</t>
@@ -4970,10 +4970,10 @@
     <t>C7-T4椎体</t>
   </si>
   <si>
-    <t>左下肺癌术后化疗后复查：左肺下叶术后缺失，左肺门、左中上肺条索状、片条状影，考虑术后改变，较前未见明显变化。右肺上叶类结节灶，考虑增殖灶可能性大，较前未见明显变化。左气管食管沟、纵隔多发小淋巴结，较前未见明显变化。左侧胸膜略增厚。左侧第7肋腋段斑片状灶，较前未见明显变化。左侧第5肋腋段、第6后肋呈术后改变。胆囊结石。左下肺癌术后化疗后复查，与2016-11-22片对比：左肺下叶术后缺失，左侧肺门及左中肺纵隔旁、左肺上叶见条索状及片条状高密度影，边界尚清晰，其内见线状致密影，较前未见明显变化。右肺上叶外基底见2个类结节灶，边界清晰，较大者直径约6MM，较前未见明显变化。左肺下叶支气管截断，气管及余支气管分支通畅，未见明显软组织肿物或受压变窄。左气管食管沟、两上气管旁、主肺动脉窗、食管旁见数个小淋巴结，边界欠清，较大者短径约8MM，增强扫描轻度强化，较前未见明显变化。两侧胸腔未见积液，左侧胸膜略增厚、粘连；右侧胸膜无增厚。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀。肝内胆管未见扩张，其内未见结石。胆囊大小未见异常，内见一结节状高密度灶，边界清，直径约3MM。胆总管未见扩张，其内未见结石。肝门区结构未见异常。门静脉未见异常。脾大小形态未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾、两肾下腺未见异常。腹主动脉旁未见肿大淋巴结。左侧第7肋腋段见斑片状致密灶，大致同前。左侧第5肋腋段、第6后肋呈术后改变。余扫描所见骨质未见明确破坏征象。</t>
-  </si>
-  <si>
-    <t>1.考虑为右肺下叶主动脉弓旁来源MT伴多处（右侧颈后三角、两侧锁骨区、右侧胸壁、纵隔及右肺门）淋巴结转移可能，请结合临床；2.双肺多发慢性炎性结节可能，请随访除外转移；3.右侧肾下腺小腺瘤可能，请随访；肝脏及两肾囊肿；前列腺增生。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET/CT图像示右侧颈后三角及两侧锁骨区多发糖代谢异常增高的肿大淋巴结，糖代谢较高且较大者位于右侧颈后三角，最大SUV值为11.9，大小为13.5MM×7.2MM；口咽、喉咽部和甲状腺无殊。胸部PET/CT图像示右肺下叶尖后段主动脉弓旁见糖代谢异常增高的结节，最大SUV值为5.4，大小为12.7MM×9.6MM，边缘呈浅分叶；左肺野内多发不伴明显糖代谢增高的小结节，直径均小于5.0MM；右肺上叶内前基底段和后基底段胸膜上见不伴明显糖代谢异常增高的结节灶，较大者大小为10.3MM×6.1MM；右侧胸壁、纵隔内气管腔静脉间、主动脉弓右、主肺动脉窗及右肺门多发糖代谢异常增高的肿大淋巴结，糖代谢较高且较大者位于主肺动脉窗，最大SUV值为9.1，大小为25.5MM×13.0MM；两侧胸腔无积液；心脏无明显增大。腹部PET图像示胃部充盈可，胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内见直径为3.0MM的囊性灶；肝内外胆管无扩张；脾周见副脾结节影；脾脏不大，密度均，未见明显占位；右肾下极见直径为47.8MM的囊性灶；左肾中部见一直径约为6.5MM囊性灶；右侧肾下腺局部增粗，见一直径约为6.0MM稍低密度灶；胆囊、胰、左肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈可；前列腺增大，密度尚均匀；两侧精囊腺无殊；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质增生，考虑为退行性变。</t>
+    <t>左下肺癌术后化疗后复查：_x0004_左肺下叶术后缺失，左肺门、左中上肺条索状、片条状影，考虑术后改变，较前未见明显变化。_x0004_右肺上叶类结节灶，考虑增殖灶可能性大，较前未见明显变化。_x0004_左气管食管沟、纵隔多发小淋巴结，较前未见明显变化。_x0004_左侧胸膜略增厚。_x0004_左侧第7肋腋段斑片状灶，较前未见明显变化。_x0004_左侧第5肋腋段、第6后肋呈术后改变。胆囊结石。左下肺癌术后化疗后复查，与2016-11-22片对比：_x0004_左肺下叶术后缺失，左侧肺门及左中肺纵隔旁、左肺上叶见条索状及片条状高密度影，边界尚清晰，其内见线状致密影，较前未见明显变化。_x0004_右肺上叶外基底见2个类结节灶，边界清晰，较大者直径约6MM，较前未见明显变化。_x0004_左肺下叶支气管截断，气管及余支气管分支通畅，未见明显软组织肿物或受压变窄。_x0004_左气管食管沟、两上气管旁、主肺动脉窗、食管旁见数个小淋巴结，边界欠清，较大者短径约8MM，增强扫描轻度强化，较前未见明显变化。_x0004_两侧胸腔未见积液，左侧胸膜略增厚、粘连；右侧胸膜无增厚。_x0004_肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀。肝内胆管未见扩张，其内未见结石。胆囊大小未见异常，内见一结节状高密度灶，边界清，直径约3MM。胆总管未见扩张，其内未见结石。肝门区结构未见异常。门静脉未见异常。_x0004_脾大小形态未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。_x0004_两肾、两肾下腺未见异常。_x0004_腹主动脉旁未见肿大淋巴结。_x0004_左侧第7肋腋段见斑片状致密灶，大致同前。_x0004_左侧第5肋腋段、第6后肋呈术后改变。余扫描所见骨质未见明确破坏征象。</t>
+  </si>
+  <si>
+    <t>1.考虑为右肺下叶主动脉弓旁来源MT伴多处（右侧颈后三角、两侧锁骨区、右侧胸壁、纵隔及右肺门）淋巴结转移可能，请结合临床；_x0004_2.双肺多发慢性炎性结节可能，请随访除外转移；_x0004_3.右侧肾下腺小腺瘤可能，请随访；肝脏及两肾囊肿；前列腺增生。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET/CT图像示右侧颈后三角及两侧锁骨区多发糖代谢异常增高的肿大淋巴结，糖代谢较高且较大者位于右侧颈后三角，最大SUV值为11.9，大小为13.5MM×7.2MM；口咽、喉咽部和甲状腺无殊。胸部PET/CT图像示右肺下叶尖后段主动脉弓旁见糖代谢异常增高的结节，最大SUV值为5.4，大小为12.7MM×9.6MM，边缘呈浅分叶；左肺野内多发不伴明显糖代谢增高的小结节，直径均小于5.0MM；右肺上叶内前基底段和后基底段胸膜上见不伴明显糖代谢异常增高的结节灶，较大者大小为10.3MM×6.1MM；右侧胸壁、纵隔内气管腔静脉间、主动脉弓右、主肺动脉窗及右肺门多发糖代谢异常增高的肿大淋巴结，糖代谢较高且较大者位于主肺动脉窗，最大SUV值为9.1，大小为25.5MM×13.0MM；两侧胸腔无积液；心脏无明显增大。腹部PET图像示胃部充盈可，胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，实质内见直径为3.0MM的囊性灶；肝内外胆管无扩张；脾周见副脾结节影；脾脏不大，密度均，未见明显占位；右肾下极见直径为47.8MM的囊性灶；左肾中部见一直径约为6.5MM囊性灶；右侧肾下腺局部增粗，见一直径约为6.0MM稍低密度灶；胆囊、胰、左肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱充盈可；前列腺增大，密度尚均匀；两侧精囊腺无殊；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质增生，考虑为退行性变。</t>
   </si>
   <si>
     <t>右肺下叶主动脉弓</t>
@@ -4997,10 +4997,10 @@
     <t>左肺癌治疗后，左下肺近肺门旁软组织团块，大致同前。左侧肺不张、两肺膨胀不全，较前未见明显变化。纵隔及肺门淋巴结，大致同前。左侧胸腔、心包大量积液，较前未见明显变化。多发骨转移瘤，大致同前。肝S2、S6血管瘤。肝S3囊肿，两肾囊肿。两侧肾下腺稍增粗，大致同前，建议随诊。肺癌治疗后复查，对比2015.4.27片：两肺透亮度减低，左肺体积缩小。左侧支气管变窄，左肺下叶近肺门旁见斑片影，大小约19MM×26MM，边界不清，密度不均，边缘见支气管气相，增强扫描可见不均匀较明显强化，病灶范围大致同前。左肺中叶近肺门区纵隔旁见楔形稍致密影，其内见支气管气相，大致同前。右上肺见散在斑片影，边界不清。气管及右侧支气管分枝通畅。左上气管旁、主肺动脉窗、隆突上及左肺门见多发淋巴结，大者短径约6MM，边界欠清，增强扫描轻度强化。心包腔及左侧胸腔大量积液，大致同前。两侧胸膜未见增厚。肝脏形态、比例未见明显异常，轮廓光整，肝S2前缘、S6内缘各见一斑片状稍低密度灶，大者约8MM×15MM，边界清晰，增强扫描动脉期结节样强化，门脉期强化范围扩大。肝S3见一囊状低密度灶，直径约5MM，界清，未见强化。肝内外胆管未见扩张，胆囊不大，未见结石影。胆总管未见扩张。肝门区未见明确病变。门静脉未见异常。脾不大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾可见小囊状低密度灶，直径约2MM~6MM，界清，无强化。两侧肾下腺增粗，最厚约6MM，增强扫描均匀强化。腹膜后未见肿大淋巴结。各胸椎、所示腰椎、右侧肱骨头、胸骨、左锁骨、双侧肋骨见多发斑片及结节状致密灶，边界较清，较前未见明显变化。</t>
   </si>
   <si>
-    <t>右上肺癌术后、化疗后，右侧胸膜稍增厚，较2011-01-13未见明显变化。左肺中叶和上叶斑片状影，考虑炎症，较前未见明显变化。肝S6低密度灶，考虑肝囊肿。右肾上极结节，考虑血管平滑肌脂肪瘤可能性大；左肾囊肿。右侧肾下腺小结节，较前未见明显变化。右上肺癌术后、化疗后复查：右上肺缺失，右上肺野见散在少许条索影，边清。左肺中叶和左上肺后基底段可见斑片状影，边缘欠清。气管及左肺、右下肺支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。右侧胸膜增厚，左侧胸膜无增厚、粘连。右侧胸壁骨呈术后改变。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。肝S6见散在几个小圆形低密度灶，直径约3MM~6MM，边界清楚，增强扫描未见强化。同前对比，未见明显变化。肝内外胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影。肝门区正常。肝静脉、门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾上极见一稍低密度影，大小9MM×10MM，边界尚清，其内可见小片状极低密度影，增强扫描不均匀强化。左肾实质内见散在多个类圆形低密度灶，最大者约23MM×25MM，边界清楚，增强扫描未见强化。右侧肾下腺见一结节，大小7MM×11MM，密度欠均匀，增强轻度强化，较前未见明显变化；左侧肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。</t>
-  </si>
-  <si>
-    <t>直肠MT放化疗后病例，与2017-4-19本院PET/CT图像比较：1.直肠癌灶范围较前缩小，病变肠周围淋巴结较前缩小、减少，糖代谢均较前减低；右肺上叶背段纵隔胸膜旁结节略较前增大、糖代谢增高，考虑为转移；第6颈椎转移可能；2.肝脏膈顶部未见明显糖代谢异常增高，转移证据不足，请结合临床；3.胃角部糖代谢增高病变，建议胃镜检查排除MT；4.肛周病变糖代谢较前减低；余处与前相仿。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像，与2017-4-19本院图像比较：脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示两基底节区见斑点状低密度灶，考虑为腔隙性梗塞；各脑室、脑池无扩大和受推移；脑沟﹑脑裂略增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。鼻窦区未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示右肺上叶背段纵隔胸膜上结节较前稍增大，直径约为7.7MM，糖代谢较前增高，最大SUV值约为4.1；右肺上叶斜裂旁结节大小与前相仿，直径约为5.0MM，糖代谢轻度增高，最大SUV值约为1.1；右肺下叶尖后段直径小于5.0MM的微小结节与前相仿，未见明显糖代谢异常增高；左肺下叶支气管局部稍扩张，周围见糖代谢增高的斑片灶，最大SUV值约为2.9，邻近胸膜增厚伴钙化灶，右肺下叶上舌段条索灶，均与前相仿；纵隔和两肺门未见糖代谢异常增高灶及肿大淋巴结；两侧胸腔无积液；心脏无明显增大；两侧腋窝无明显肿大淋巴结。腹部PET/CT图像示胃角部胃壁局部增厚伴糖代谢异常增高，早期相和1.5h延迟相最大SUV值分别约为4.7和6.7，滞留指数约为42.6%；本院2017-7-27增强CT图像所示肝脏膈顶异常密度结节，早期相及延迟相均未见明显糖代谢异常增高；肝内外胆管无扩张；肠道呈生理性糖代谢增强；两肾致密灶与前相仿；胆囊内造影剂滞留；胰、脾、两肾下腺及大血管处未见明显糖代谢异常增高灶及占位；腹腔无积液。盆部PET/CT图像示直肠病变肠壁范围较前缩小，累及长度约为45.2MM，仍伴糖代谢异常增高，程度较前减低，最大SUV值约为36.3；周边脂肪间隙模糊、伴结节状增厚与前相仿；病变肠旁淋巴结较前缩小、减少，较大者7.5MM×5.2MM，糖代谢与前相仿，最大SUV值约为2.1；肛周左侧局部软组织增厚与前相仿，糖代谢较前明显减低，最大SUV值约为3.4；肛管中段局灶性糖代谢增高，最大SUV值约为10.5，考虑为生理性摄取或炎症；膀胱内见显像剂生理性积聚；两侧精囊腺形态可；两侧膀胱精囊三角对称；前列腺无明显增大，内见钙化灶；两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示第6颈椎椎体见直径约为7.8MM稍高密度结节，糖代谢较前增高，最大SUV值约为7.8；全身其余骨未见明显糖代谢异常增高灶及骨质破坏吸收征象。</t>
+    <t>右上肺癌术后、化疗后，右侧胸膜稍增厚，较2011-01-13未见明显变化。_x0004_左肺中叶和上叶斑片状影，考虑炎症，较前未见明显变化。_x0004_肝S6低密度灶，考虑肝囊肿。_x0004_右肾上极结节，考虑血管平滑肌脂肪瘤可能性大；左肾囊肿。_x0004_右侧肾下腺小结节，较前未见明显变化。_x0004_右上肺癌术后、化疗后复查：_x0004_右上肺缺失，右上肺野见散在少许条索影，边清。_x0004_左肺中叶和左上肺后基底段可见斑片状影，边缘欠清。_x0004_气管及左肺、右下肺支气管分支通畅。_x0004_两肺门及纵隔未见明显肿大淋巴结。_x0004_两侧胸腔未见积液。右侧胸膜增厚，左侧胸膜无增厚、粘连。_x0004_右侧胸壁骨呈术后改变。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。_x0004_肝S6见散在几个小圆形低密度灶，直径约3MM~6MM，边界清楚，增强扫描未见强化。同前对比，未见明显变化。_x0004_肝内外胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影。_x0004_肝门区正常。肝静脉、门静脉未见异常。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。_x0004_右肾上极见一稍低密度影，大小9MM×10MM，边界尚清，其内可见小片状极低密度影，增强扫描不均匀强化。左肾实质内见散在多个类圆形低密度灶，最大者约23MM×25MM，边界清楚，增强扫描未见强化。右侧肾下腺见一结节，大小7MM×11MM，密度欠均匀，增强轻度强化，较前未见明显变化；左侧肾下腺未见异常。_x0004_膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。</t>
+  </si>
+  <si>
+    <t>直肠MT放化疗后病例，与2017-4-19本院PET/CT图像比较：_x0004_1.直肠癌灶范围较前缩小，病变肠周围淋巴结较前缩小、减少，糖代谢均较前减低；右肺上叶背段纵隔胸膜旁结节略较前增大、糖代谢增高，考虑为转移；第6颈椎转移可能；_x0004_2.肝脏膈顶部未见明显糖代谢异常增高，转移证据不足，请结合临床；_x0004_3.胃角部糖代谢增高病变，建议胃镜检查排除MT；_x0004_4.肛周病变糖代谢较前减低；余处与前相仿。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像，与2017-4-19本院图像比较：脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示两基底节区见斑点状低密度灶，考虑为腔隙性梗塞；各脑室、脑池无扩大和受推移；脑沟﹑脑裂略增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。鼻窦区未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示右肺上叶背段纵隔胸膜上结节较前稍增大，直径约为7.7MM，糖代谢较前增高，最大SUV值约为4.1；右肺上叶斜裂旁结节大小与前相仿，直径约为5.0MM，糖代谢轻度增高，最大SUV值约为1.1；右肺下叶尖后段直径小于5.0MM的微小结节与前相仿，未见明显糖代谢异常增高；左肺下叶支气管局部稍扩张，周围见糖代谢增高的斑片灶，最大SUV值约为2.9，邻近胸膜增厚伴钙化灶，右肺下叶上舌段条索灶，均与前相仿；纵隔和两肺门未见糖代谢异常增高灶及肿大淋巴结；两侧胸腔无积液；心脏无明显增大；两侧腋窝无明显肿大淋巴结。腹部PET/CT图像示胃角部胃壁局部增厚伴糖代谢异常增高，早期相和1.5h延迟相最大SUV值分别约为4.7和6.7，滞留指数约为42.6%；本院2017-7-27增强CT图像所示肝脏膈顶异常密度结节，早期相及延迟相均未见明显糖代谢异常增高；肝内外胆管无扩张；肠道呈生理性糖代谢增强；两肾致密灶与前相仿；胆囊内造影剂滞留；胰、脾、两肾下腺及大血管处未见明显糖代谢异常增高灶及占位；腹腔无积液。盆部PET/CT图像示直肠病变肠壁范围较前缩小，累及长度约为45.2MM，仍伴糖代谢异常增高，程度较前减低，最大SUV值约为36.3；周边脂肪间隙模糊、伴结节状增厚与前相仿；病变肠旁淋巴结较前缩小、减少，较大者7.5MM×5.2MM，糖代谢与前相仿，最大SUV值约为2.1；肛周左侧局部软组织增厚与前相仿，糖代谢较前明显减低，最大SUV值约为3.4；肛管中段局灶性糖代谢增高，最大SUV值约为10.5，考虑为生理性摄取或炎症；膀胱内见显像剂生理性积聚；两侧精囊腺形态可；两侧膀胱精囊三角对称；前列腺无明显增大，内见钙化灶；两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET/CT图像示第6颈椎椎体见直径约为7.8MM稍高密度结节，糖代谢较前增高，最大SUV值约为7.8；全身其余骨未见明显糖代谢异常增高灶及骨质破坏吸收征象。</t>
   </si>
   <si>
     <t>45.2MM</t>
@@ -5009,7 +5009,7 @@
     <t>右肺上叶背段纵隔胸膜旁,第6颈椎</t>
   </si>
   <si>
-    <t>肺癌放化疗后复查，与2016-08-02胸部、2016-06-15颅脑MR对比：脑缺血灶。垂体内部及左下缘异常信号影，较前稍增大，建议行垂体MR检查。左上肺背段肿物较前缩小。左肺上叶前基底段近胸膜斑片灶，较前缩小，考虑炎症。右肺下叶少许斑片，较前缩小，考虑炎性病灶。左肺中叶内段肺不张。扫描所见两肾数个囊肿。肺癌放化疗后复查，与2016-08-02胸部、2016-06-15颅脑MR对比：两侧大脑白质内见数个斑点状、小斑片状异常信号影，T1WI呈等或稍低信号，T2WI及T2FLAIR呈高信号，增强后未见强化。垂体内部及左下缘见异常信号影，边界清楚，T2WI低信号，T1WI高信号，增强扫描为高信号，左下缘病灶呈类圆形，大小约7MM×5MM，垂体内部病灶大小约9MM×5MM较前增大。小脑及脑干形态正常，信号均匀，增强后亦未见异常信号区。各脑室及脑池大小、形态未见异常。大脑中线结构未见移位，未见占位性病变。左上肺背段见一肿物，大小约27MM×21MM，信号欠均匀，T1WI呈等信号，T2WI呈稍高信号，增强后不均匀轻中度强化，较前稍缩小。左上肺前基底段近胸膜见斑片灶，T2WI呈稍高信号，边界欠清，增强后较明显强化，范围较前明显缩小。左肺中叶内段见一斑片影，T2WI呈高信号，T1WI呈等信号，增强后强化明显。右下肺见少许斑片灶，边界清，较前缩小。左肺上叶后基底段支气管变窄。气管及余支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜无增厚。扫描所见两肾数个囊性灶，大者直径约15MM，边界清，未见强化。扫描所见骨质未见破坏征象。</t>
+    <t>肺癌放化疗后复查，与2016-08-02胸部、2016-06-15颅脑MR对比：_x0004_脑缺血灶。_x0004_垂体内部及左下缘异常信号影，较前稍增大，建议行垂体MR检查。_x0004_左上肺背段肿物较前缩小。_x0004_左肺上叶前基底段近胸膜斑片灶，较前缩小，考虑炎症。_x0004_右肺下叶少许斑片，较前缩小，考虑炎性病灶。_x0004_左肺中叶内段肺不张。_x0004_扫描所见两肾数个囊肿。肺癌放化疗后复查，与2016-08-02胸部、2016-06-15颅脑MR对比：_x0004_两侧大脑白质内见数个斑点状、小斑片状异常信号影，T1WI呈等或稍低信号，T2WI及T2FLAIR呈高信号，增强后未见强化。_x0004_垂体内部及左下缘见异常信号影，边界清楚，T2WI低信号，T1WI高信号，增强扫描为高信号，左下缘病灶呈类圆形，大小约7MM×5MM，垂体内部病灶大小约9MM×5MM较前增大。小脑及脑干形态正常，信号均匀，增强后亦未见异常信号区。_x0004_各脑室及脑池大小、形态未见异常。_x0004_大脑中线结构未见移位，未见占位性病变。_x0004_左上肺背段见一肿物，大小约27MM×21MM，信号欠均匀，T1WI呈等信号，T2WI呈稍高信号，增强后不均匀轻中度强化，较前稍缩小。左上肺前基底段近胸膜见斑片灶，T2WI呈稍高信号，边界欠清，增强后较明显强化，范围较前明显缩小。左肺中叶内段见一斑片影，T2WI呈高信号，T1WI呈等信号，增强后强化明显。_x0004_右下肺见少许斑片灶，边界清，较前缩小。_x0004_左肺上叶后基底段支气管变窄。气管及余支气管分支通畅。_x0004_两肺门及纵隔未见明显肿大淋巴结。_x0004_两侧胸腔未见积液。两侧胸膜无增厚。_x0004_扫描所见两肾数个囊性灶，大者直径约15MM，边界清，未见强化。_x0004_扫描所见骨质未见破坏征象。</t>
   </si>
   <si>
     <t>左上肺背段</t>
@@ -5042,19 +5042,19 @@
     <t>左肺癌术后改变，与2013-8-14日片对比：左肺中叶及右肺下叶小结节，大致同前。左肺中叶散在索条影，考虑纤维增殖灶。两肺各级支气管普遍稍扩张，大致同前。左侧胸膜轻度增厚，左侧胸腔少量积液，大致同前。肝内多发囊肿。右肾小囊肿。左侧第4、5前肋术后改变。左上肺癌术后化疗后，与2013-8-14片比较：左肺上叶术后缺失，左肺下中叶充气良好。左肺中叶边缘见少许斑片灶、条索病灶，与胸膜粘连。左肺中叶、右肺下叶见数个小结节影，直径约2MM~3MM，轮廓光整，密度均匀。两侧各级支气管普遍管腔稍扩张。两肺门及纵隔未见明显肿大淋巴结。左侧胸腔少量积液，大致同前，左侧胸膜轻度增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝内见多发类圆形低密灶，边界清，最大者直径约13MM，边界清，增强扫描未见强化。胆囊大小正常，其内未见结石，肝内胆管、胆总管未见扩张，其内未见结石。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见小低密灶，边界清，短径约3MM，边界清，增强扫描未见强化，左肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见明显肿大淋巴结。左侧第4、5前肋见斜行线样高密度影，较前未见明显变化。</t>
   </si>
   <si>
-    <t>胆囊结石，必要时空腹复查肝肋上斜切123MM/(-)，剑上纵切65MM/2指，肝区回声均匀，CDFI示其内血流分布正常。门静脉主干12MM，左支10MM，内未见异常回声，主干及右左支血流通畅，左支流速0.23MM/s，方向向肝。肝静脉血流通畅，脾门处脾静脉内径5MM。脾肋间切29MM/(-)。餐后胆囊约54MM×27MM，胆囊壁显示不清，内见多枚强回声，大者7MM，CDFI示其内血流分布正常。胆总管下段内径5MM，中上段肠气遮盖，未显示.胰腺大小形态正常，实质回声均匀，CDFI示其内血流分布正常。两肾大小正常，结构清晰，肾盂扩张（－），内未见异常肿块回声，CDFI示其内血流分布正常。两侧输尿管未见明显扩张。</t>
-  </si>
-  <si>
-    <t>左上肺癌术后化疗后，对比2016-4-12片：左上肺术后改变，局部未见明确复发征象。左肺下叶少许纤维增殖钙化灶。左肺下叶后段类结节灶，考虑增殖灶，大致同前。右下肺斑片灶，考虑增殖钙化灶，大致同前。左胸腔少量积液，较前未见明显变化。肝内数个小囊肿，大致同前。左上肺癌术后化疗后复查：左侧胸廓稍塌陷，纵隔稍左移；左上肺术后缺如，左下肺见少许条片状高密度影，内见钙化灶，相邻胸膜受牵拉。左肺下叶后段见一小类结节灶，边界尚清，大小约3MM×3MM，密度较高。右下肺尖后段见一小斑片影，大小约7MM×3MM，内见点状钙化。气管、支气管分支通畅。两肺门及纵隔未见肿大淋巴结影。左锁骨上动脉起自主动脉弓，经气管后方走行。考虑迷走型左锁骨上动脉。左胸腔见少量积液，左侧胸膜稍增厚、粘连，右侧胸腔未见积液，右侧胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓欠光整，肝S2、S3、S7、S8可见多个低密度病灶，较大者约5MM×7MM，增强后未见强化。肝内胆管正常，未见结石，胆囊不大，未见结石，胆总管未见扩张，未见结石。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。所示两肾未见异常。两肾下腺未见明确异常。胃右血管旁可见小淋巴结，大小约为6MM×7MM，腹主动脉旁未见肿大淋巴结。扫描所见多个胸腰椎见骨质增生，未见明确破坏征象。</t>
+    <t>胆囊结石，必要时空腹复查肝肋上斜切123MM/(-)，剑上纵切65MM/2指，肝区回声均匀，CDFI示其内血流分布正常。门静脉主干12MM，左支10MM，内未见异常回声，主干及右左支血流通畅，左支流速0.23MM/s,方向向肝。肝静脉血流通畅，脾门处脾静脉内径5MM。脾肋间切29MM/(-)。餐后胆囊约54MM×27MM，胆囊壁显示不清，内见多枚强回声，大者7MM，CDFI示其内血流分布正常。胆总管下段内径5MM,中上段肠气遮盖,未显示.胰腺大小形态正常，实质回声均匀，CDFI示其内血流分布正常。两肾大小正常，结构清晰，肾盂扩张（－），内未见异常肿块回声，CDFI示其内血流分布正常。两侧输尿管未见明显扩张。</t>
+  </si>
+  <si>
+    <t>左上肺癌术后化疗后，对比2016-4-12片：_x0004_左上肺术后改变，局部未见明确复发征象。_x0004_左肺下叶少许纤维增殖钙化灶。_x0004_左肺下叶后段类结节灶，考虑增殖灶，大致同前。_x0004_右下肺斑片灶，考虑增殖钙化灶，大致同前。_x0004_左胸腔少量积液，较前未见明显变化。_x0004_肝内数个小囊肿，大致同前。左上肺癌术后化疗后复查：_x0004_左侧胸廓稍塌陷，纵隔稍左移；左上肺术后缺如，左下肺见少许条片状高密度影，内见钙化灶，相邻胸膜受牵拉。左肺下叶后段见一小类结节灶，边界尚清，大小约3MM×3MM，密度较高。右下肺尖后段见一小斑片影，大小约7MM×3MM，内见点状钙化。_x0004_气管、支气管分支通畅。_x0004_两肺门及纵隔未见肿大淋巴结影。左锁骨上动脉起自主动脉弓，经气管后方走行。考虑迷走型左锁骨上动脉。_x0004_左胸腔见少量积液，左侧胸膜稍增厚、粘连，右侧胸腔未见积液，右侧胸膜未见增厚。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓欠光整，肝S2、S3、S7、S8可见多个低密度病灶，较大者约5MM×7MM，增强后未见强化。_x0004_肝内胆管正常，未见结石，胆囊不大，未见结石，胆总管未见扩张，未见结石。肝门区正常。门静脉所见正常。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。所示两肾未见异常。两肾下腺未见明确异常。_x0004_胃右血管旁可见小淋巴结，大小约为6MM×7MM，腹主动脉旁未见肿大淋巴结。_x0004_扫描所见多个胸腰椎见骨质增生，未见明确破坏征象。</t>
   </si>
   <si>
     <t>左下肺叶切除术后，对比2013-4-17片：左侧斜裂胸膜较明显增厚，较前变化不大。右上肺膈面下小类结节灶，大致同前，考虑增殖灶可能大。两锁下及纵隔内数个小淋巴结，大致同前。肝内多个小类圆形低密度区，考虑小囊肿。胃底体下部大弯侧胃壁结节，间质瘤？较前未见明显变化。左下肺叶切除术后，对比2013-4-17片：左肺体积缩小，纵隔稍向左侧偏移，左中肺残见少许索条影，左侧斜裂不均匀增厚，内见条状高密度金属影，较前变化不大。右下肺透亮度稍增高，见多发小圆形透亮区，大致同前。右上肺膈面下见小类结节灶，大小约4MM×5MM，边界清，大致同前。气管及右肺各叶支气管分枝通畅，未见明显软组织肿物或受压变窄。两锁下、血管前、两上气管旁、主动脉旁、隆突上可见多个淋巴结，最大者短径约为7MM，边界尚清，较前变化不大。两侧胸腔未见积液。左侧胸膜稍增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内见散在数个小类圆形低密度区，直径约3MM~6MM，边界清，增强后未见明确强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。胃底体下部大弯侧胃壁见结节状突起，密度不均匀，见点状钙化，大小约9MM×10MM，增强后轻度强化，较前未见明显变化。左侧第6肋骨质不连续，呈术后改变。余扫描范围内胸椎、胸壁骨及软组织未见异常。</t>
   </si>
   <si>
-    <t>两侧颈总动脉及颈内动脉起始处斑块形成，右乳内实质占位-考虑MT可能大，两侧腋窝淋巴结左侧颈总动脉内径7.2MM，IMT0.6-1.3MM，峰值流速0.46MM/s，RI0.80，颈内动脉内径5.9MM，RI0.55，颈外动脉内径4.3MM，颈总动脉主干及分叉处、颈内动脉起始处见多个强回声，最大13MM×3.2MM，颈内动脉起始处因斑块声影，无法显示管腔内径。右侧颈总动脉内径7.9MM，IMT0.8MM，峰值流速0.28MM/s，RI0.78，颈内动脉内径5.8MM，RI0.72，颈外动脉内径5.1MM，颈总动脉分叉处及颈内动脉起始段见强回声10MM×2.6MM，CDFI示两侧颈动脉血流通畅，方向正常，流速曲线基本正常。左椎动脉内径2.3MM，RI0.76，右椎动脉内径37MM，RI0.73。CDFI示血流通畅，方向正常，频谱形态正常。左侧乳腺腺体结构尚正常，未见明显肿块回声。右侧乳腺腺体结构尚正常，2点钟处见25MM×23MM低回声团块，形态不规则，呈分叶状，CDFI示内见短线状彩色血流，RI0.85，其旁另见6MM×6MM类似回声。两侧腋窝见数个高回声，左侧最大10MM×4MM，右侧最大19MM×7MM。</t>
-  </si>
-  <si>
-    <t>左肺门区病灶代谢活跃，考虑恶性病变，肺门转移淋巴结与肺癌原发灶鉴别；左下肺病灶代谢活跃，考虑恶性病变；纵隔数个淋巴结代谢活跃，两侧肾下腺病灶代谢活跃，全身多处骨质破坏代谢活跃，考虑转移。轻度脂肪肝。胆囊多发小结石。子宫体局部代谢略活跃，建议随诊；右侧卵巢囊肿。两肺纤维增殖灶。空腹6h以下，静脉注射18F-FDG，静息约60MMin后行全身PET/CT断层显像，影像清晰。左肺门区软组织影放射性浓聚，SUV约25.6，大小约2.2CM×3.1CM，边缘见多个短毛刺。左下肺前段近胸膜处偏心空洞结节影放射性分布浓密，SUV约3.9，最大横截面约1.1CM×1.9CM，病灶边缘见毛刺，相邻胸膜粘连牵拉。另两下肺、左上肺少许条索、小斑状致密影放射性分布未见明显异常，部分内见钙化。气管、支气管通畅。两侧胸壁未见确切病灶和异常放射性分布。纵隔左下上气管旁数个淋巴结放射性浓聚，SUV最高约12.1，最大约1.3CM×1.4CM；余纵隔、右肺门及两侧腋窝未见肿大淋巴结及异常放射性分布。两侧乳腺放射性分布未见明显异常。所见两侧脑实质密度、形态正常，放射性分布均匀、对称，诸脑室、脑池、脑沟、脑裂未见异常，中线结构居中。鼻咽、口咽及喉咽结构及放射性分布未见明显异常。额窦、蝶窦、筛窦及两侧下颌窦结构及放射性分布未见明显异常。甲状腺放射性分布未见异常。两下颈小淋巴结放射性分布未见明显异常。肝脏密度不均匀稍降低放射性分布未见明显异常，CT值约42Hu（脾CT值约47Hu）。肝门结构及放射性分布未见明显异常。肝内、外胆管未见扩张。胆囊内多发斑点状高密影放射性缺损，CT值约70Hu。胃及十二指肠放射性分布未见明显异常。两侧肾下腺软组织影放射性浓聚，SUV最高约31.4，右侧者大小约4.3CM×4.8CM，左侧者大小约1.0CM×2.0CM，其中右肾下腺病灶与相邻胃壁、胰体尾、右肾及脾脏分界欠清。脾脏附近小结节影密度及放射性分布与脾相仿，大小约1.0CM×1.0CM（副脾）。脾脏、胰腺、两肾形态、结构及放射性分布未见异常。腹腔及腹膜后未见肿大淋巴结及异常放射性分布。右侧附件区囊状低密度影放射性缺损，大小约1.1CM×1.3CM，CT值约6Hu。子宫体见小结节状突起放射性略浓密。膀胱及肠管等形态、结构及放射性分布未见明显异常。两髂血管旁及两腹股沟未见肿大淋巴结及异常放射性分布。两侧第5肋骨、左侧第8肋骨、C7、T4、T6、T7、L1、L4、L5椎体及附件、右侧肩胛骨、右侧髂骨、左侧髋臼多处骨质破坏放射性浓聚，SUV最高约18.6，其中L5病灶侵犯右侧椎旁神经孔；左侧股骨下段髓腔密度局灶性增厚放射性分布略浓密，SUV约3.3。</t>
+    <t>两侧颈总动脉及颈内动脉起始处斑块形成，右乳内实质占位-考虑MT可能大，两侧腋窝淋巴结左侧颈总动脉内径7.2MM，IMT0.6-1.3MM，峰值流速0.46MM/s，RI0.80，颈内动脉内径5.9MM，RI0.55，颈外动脉内径4.3MM，颈总动脉主干及分叉处、颈内动脉起始处见多个强回声，最大13MM×3.2MM，颈内动脉起始处因斑块声影，无法显示管腔内径。右侧颈总动脉内径7.9MM，IMT0.8MM，峰值流速0.28MM/s，RI0.78，颈内动脉内径5.8MM，RI0.72，颈外动脉内径5.1MM，颈总动脉分叉处及颈内动脉起始段见强回声10MM×2.6MM，CDFI示两侧颈动脉血流通畅，方向正常，流速曲线基本正常。左椎动脉内径2.3MM，RI0.76，右椎动脉内径37MM，RI0.73。CDFI示血流通畅，方向正常，频谱形态正常。左侧乳腺腺体结构尚正常，未见明显肿块回声。右侧乳腺腺体结构尚正常，2点钟处见25MM×23MM低回声团块，形态不规则，呈分叶状，CDFI示内见短线状彩色血流，RI0.85,其旁另见6MM×6MM类似回声。两侧腋窝见数个高回声，左侧最大10MM×4MM，右侧最大19MM×7MM。</t>
+  </si>
+  <si>
+    <t>左肺门区病灶代谢活跃，考虑恶性病变，肺门转移淋巴结与肺癌原发灶鉴别；左下肺病灶代谢活跃，考虑恶性病变；纵隔数个淋巴结代谢活跃，两侧肾下腺病灶代谢活跃，全身多处骨质破坏代谢活跃，考虑转移。_x0004_轻度脂肪肝。_x0004_胆囊多发小结石。_x0004_子宫体局部代谢略活跃，建议随诊；右侧卵巢囊肿。_x0004_两肺纤维增殖灶。空腹6h以下，静脉注射18F-FDG，静息约60MMin后行全身PET/CT断层显像，影像清晰。_x0004_左肺门区软组织影放射性浓聚，SUV约25.6，大小约2.2CM×3.1CM，边缘见多个短毛刺。左下肺前段近胸膜处偏心空洞结节影放射性分布浓密，SUV约3.9，最大横截面约1.1CM×1.9CM，病灶边缘见毛刺，相邻胸膜粘连牵拉。另两下肺、左上肺少许条索、小斑状致密影放射性分布未见明显异常，部分内见钙化。气管、支气管通畅。两侧胸壁未见确切病灶和异常放射性分布。纵隔左下上气管旁数个淋巴结放射性浓聚，SUV最高约12.1，最大约1.3CM×1.4CM；余纵隔、右肺门及两侧腋窝未见肿大淋巴结及异常放射性分布。两侧乳腺放射性分布未见明显异常。_x0004_所见两侧脑实质密度、形态正常，放射性分布均匀、对称，诸脑室、脑池、脑沟、脑裂未见异常，中线结构居中。鼻咽、口咽及喉咽结构及放射性分布未见明显异常。额窦、蝶窦、筛窦及两侧下颌窦结构及放射性分布未见明显异常。甲状腺放射性分布未见异常。两下颈小淋巴结放射性分布未见明显异常。_x0004_肝脏密度不均匀稍降低放射性分布未见明显异常，CT值约42Hu（脾CT值约47Hu）。肝门结构及放射性分布未见明显异常。肝内、外胆管未见扩张。胆囊内多发斑点状高密影放射性缺损，CT值约70Hu。胃及十二指肠放射性分布未见明显异常。两侧肾下腺软组织影放射性浓聚，SUV最高约31.4，右侧者大小约4.3CM×4.8CM，左侧者大小约1.0CM×2.0CM，其中右肾下腺病灶与相邻胃壁、胰体尾、右肾及脾脏分界欠清。脾脏附近小结节影密度及放射性分布与脾相仿，大小约1.0CM×1.0CM（副脾）。脾脏、胰腺、两肾形态、结构及放射性分布未见异常。腹腔及腹膜后未见肿大淋巴结及异常放射性分布。_x0004_右侧附件区囊状低密度影放射性缺损，大小约1.1CM×1.3CM，CT值约6Hu。子宫体见小结节状突起放射性略浓密。膀胱及肠管等形态、结构及放射性分布未见明显异常。两髂血管旁及两腹股沟未见肿大淋巴结及异常放射性分布。_x0004_两侧第5肋骨、左侧第8肋骨、C7、T4、T6、T7、L1、L4、L5椎体及附件、右侧肩胛骨、右侧髂骨、左侧髋臼多处骨质破坏放射性浓聚，SUV最高约18.6，其中L5病灶侵犯右侧椎旁神经孔；左侧股骨下段髓腔密度局灶性增厚放射性分布略浓密，SUV约3.3。</t>
   </si>
   <si>
     <t>左肺门区,左下肺病灶</t>
@@ -5093,10 +5093,10 @@
     <t>第7、8胸椎体,第2腰椎</t>
   </si>
   <si>
-    <t>右肺癌化疗后，对比2017-3-20CT：右上肺病变较前变化不大。右肺下叶小结节，较前稍增大。左肺下叶后段磨玻璃影，大致同前，建议随诊。左肺上叶类结节灶，大致同前。左侧锁骨下区、纵隔多发淋巴结，较前变化不大。肝囊肿。右肺癌化疗后，与2017-3-20片对比：右肺上叶见不规则结节状、片状病灶，边界不清，最大层面大小约12MM×8MM，边缘呈分叶状，增强扫描不均匀强化，紧贴斜裂胸膜，右上肺见少许斑片状稍高密度影，边界不清。右下肺（se4-126）见一小结节，边界清，直径约3MM，较前稍增大。左肺下叶后段见一磨玻璃影，直径约5MM，大致同前。左肺上叶见类结节，直径约2MM，大致同前。右肺上叶前内基底段支气管变窄，气管及其余支气管分支通畅。左侧锁骨下区、两下上气管旁、血管前、主动脉弓旁、主肺动脉窗、隆突上见多发淋巴结，部分边界不清，大者短径约5MM，轻度强化，同前相仿。两侧胸腔未见积液，左侧胸膜未见明显增厚。心包未见明显积液。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内见多个低密度灶，边界清，大者直径约9MM，未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾及两肾下腺未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。扫描范围未见骨质破坏征象。</t>
-  </si>
-  <si>
-    <t>右肺鳞癌化疗后复查，与2017-4-11对比：左上肺、左中肺、右下肺小结节，较前变化不明显，考虑纤维增殖钙化灶可能，建议观察。右上肺后基底段斑片状影，考虑炎症。原右侧锁骨下淋巴结较前变化不明显。两侧下上气管旁、纵隔、两肺门多发肿大淋巴结，较前稍增大、坏死范围增大。前心膈角处淋巴结，新发，考虑转移。两侧胸腔积液。肝S4稍低密度影，考虑转移瘤。肝S4增强扫描片状稍低密度影，考虑假病灶可能性大。增强扫描动脉期肝脏其余区域不均匀斑片状强化，考虑化疗后肝损伤可能性大。左肾囊肿。腹主动脉旁淋巴结，较前稍缩小。左侧第5~7肋、右侧第4、5肋骨骨质改变，较前变化不明显。右肺鳞癌化疗后复查，与2017-4-11对比：两肺纹理清晰，左上肺、左中肺、右下肺见数个小结节状病灶，大小约3MM~5MM，边界清楚，部分与左侧斜裂胸膜相连，部分病灶内见钙化灶，较前变化不明显。两肺下叶见少许条索灶及空腔影，边清。前片所示右肺上叶后基底段小片状磨玻璃灶，本次扫描已不明显。右上肺后基底段（SE7-IM49）见斑片状影，边界模糊，大小约33MM×15MM，密度不均匀。原右侧锁骨下多发淋巴结较前变化不明显，大者短径约6MM。两侧下上气管旁、血管前、主肺动脉窗、隆突上、气管后方、两肺门、前心膈角见多发肿大淋巴结，部分相互融合成团块状灶，边界稍模糊，轴位最大范围约98MM×60MM（Se6，Im30），增强扫描不均匀强化稍明显，可见大片坏死，病灶包绕、推挤胸中段食管、下腔静脉、两侧主支气管、两肺动脉干、两下肺静脉、右上肺静脉致其管腔稍变窄，胸中段食管分界不清，管壁增厚，病灶较前稍增大、坏死范围增加。气管及其余支气管分支通畅。两侧胸腔见少量积液，右侧较多。两侧胸膜无增厚、粘连。肝S4（SE9-IM15）见1个稍低密度影，边界欠清，直径约7MM，增强扫描轻度强化。肝S4（SE6-IM62）增强扫描见1个片状稍低密度影，边界清，约30MM×13MM。增强扫描动脉期肝脏其余区域呈不均匀斑片状强化，延迟期呈等密度。肝S8胆管轻度扩张，其余肝内胆管无扩张，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见肿大淋巴结。门静脉未见充盈缺损影。脾不大，密度均匀。胰腺大小、形态未见异常，密度均匀。两侧肾盂未见结石，左肾见边界清晰的类圆形低密度灶，增强扫描各期均无明显强化，直径约8MM；余两肾实质未见异常。两肾下腺未见异常。腹主动脉旁见数枚淋巴结，较大者短径约6MM，较前稍缩小。左侧第5~7肋、右侧第4、5肋骨见模糊骨折线及周围骨质密度增高灶，边界模糊，较前变化不明显；余扫描范围内骨质未见骨质破坏征象。</t>
+    <t>右肺癌化疗后，对比2017-3-20CT：_x0004_右上肺病变较前变化不大。_x0004_右肺下叶小结节，较前稍增大。_x0004_左肺下叶后段磨玻璃影，大致同前，建议随诊。_x0004_左肺上叶类结节灶，大致同前。_x0004_左侧锁骨下区、纵隔多发淋巴结，较前变化不大。_x0004_肝囊肿。右肺癌化疗后，与2017-3-20片对比：_x0004_右肺上叶见不规则结节状、片状病灶，边界不清，最大层面大小约12MM×8MM，边缘呈分叶状，增强扫描不均匀强化，紧贴斜裂胸膜，右上肺见少许斑片状稍高密度影，边界不清。右下肺（se4-126）见一小结节，边界清，直径约3MM，较前稍增大。左肺下叶后段见一磨玻璃影，直径约5MM，大致同前。左肺上叶见类结节，直径约2MM，大致同前。_x0004_右肺上叶前内基底段支气管变窄，气管及其余支气管分支通畅。_x0004_左侧锁骨下区、两下上气管旁、血管前、主动脉弓旁、主肺动脉窗、隆突上见多发淋巴结，部分边界不清，大者短径约5MM，轻度强化，同前相仿。_x0004_两侧胸腔未见积液，左侧胸膜未见明显增厚。心包未见明显积液。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内见多个低密度灶，边界清，大者直径约9MM，未见强化。_x0004_肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉未见异常。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。_x0004_两肾及两肾下腺未见异常。_x0004_膈脚后、腹主动脉旁未见肿大淋巴结。_x0004_扫描范围未见骨质破坏征象。</t>
+  </si>
+  <si>
+    <t>右肺鳞癌化疗后复查，与2017-4-11对比：_x0004_左上肺、左中肺、右下肺小结节，较前变化不明显，考虑纤维增殖钙化灶可能，建议观察。右上肺后基底段斑片状影，考虑炎症。_x0004_原右侧锁骨下淋巴结较前变化不明显。两侧下上气管旁、纵隔、两肺门多发肿大淋巴结，较前稍增大、坏死范围增大。前心膈角处淋巴结，新发，考虑转移。两侧胸腔积液。_x0004_肝S4稍低密度影，考虑转移瘤。肝S4增强扫描片状稍低密度影，考虑假病灶可能性大。增强扫描动脉期肝脏其余区域不均匀斑片状强化，考虑化疗后肝损伤可能性大。_x0004_左肾囊肿。腹主动脉旁淋巴结，较前稍缩小。_x0004_左侧第5~7肋、右侧第4、5肋骨骨质改变，较前变化不明显。右肺鳞癌化疗后复查，与2017-4-11对比：_x0004_两肺纹理清晰，左上肺、左中肺、右下肺见数个小结节状病灶，大小约3MM~5MM，边界清楚，部分与左侧斜裂胸膜相连，部分病灶内见钙化灶，较前变化不明显。两肺下叶见少许条索灶及空腔影，边清。前片所示右肺上叶后基底段小片状磨玻璃灶，本次扫描已不明显。右上肺后基底段（SE7-IM49）见斑片状影，边界模糊，大小约33MM×15MM，密度不均匀。_x0004_原右侧锁骨下多发淋巴结较前变化不明显，大者短径约6MM。两侧下上气管旁、血管前、主肺动脉窗、隆突上、气管后方、两肺门、前心膈角见多发肿大淋巴结，部分相互融合成团块状灶，边界稍模糊，轴位最大范围约98MM×60MM（Se6，Im30），增强扫描不均匀强化稍明显，可见大片坏死，病灶包绕、推挤胸中段食管、下腔静脉、两侧主支气管、两肺动脉干、两下肺静脉、右上肺静脉致其管腔稍变窄，胸中段食管分界不清，管壁增厚，病灶较前稍增大、坏死范围增加。气管及其余支气管分支通畅。两侧胸腔见少量积液，右侧较多。两侧胸膜无增厚、粘连。_x0004_肝S4（SE9-IM15）见1个稍低密度影，边界欠清，直径约7MM，增强扫描轻度强化。肝S4（SE6-IM62）增强扫描见1个片状稍低密度影，边界清，约30MM×13MM。增强扫描动脉期肝脏其余区域呈不均匀斑片状强化，延迟期呈等密度。肝S8胆管轻度扩张，其余肝内胆管无扩张，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见肿大淋巴结。门静脉未见充盈缺损影。_x0004_脾不大，密度均匀。胰腺大小、形态未见异常，密度均匀。两侧肾盂未见结石，左肾见边界清晰的类圆形低密度灶，增强扫描各期均无明显强化，直径约8MM；余两肾实质未见异常。两肾下腺未见异常。腹主动脉旁见数枚淋巴结，较大者短径约6MM，较前稍缩小。_x0004_左侧第5~7肋、右侧第4、5肋骨见模糊骨折线及周围骨质密度增高灶，边界模糊，较前变化不明显；余扫描范围内骨质未见骨质破坏征象。</t>
   </si>
   <si>
     <t>左肺癌术后改变，未见明确残留征象。左下肺少许纤维灶。右下肺短条状影，考虑增殖钙化灶。左胸腔少量积液。肝囊肿。左上肺癌术后：左侧胸廓稍塌陷，纵隔稍左移；左上肺术后缺如，左下肺见少许条片状密度增高影，，相邻胸膜受牵拉；右下肺尖后段见一短条状影，约7MM×3MM大小，内见点状钙化影；余两肺纹理走行清晰，两肺内未见明确实质性病变；气管、支气管分支通畅；两肺门及纵隔未见肿大淋巴结影；左胸腔见少量积液；左侧胸膜增厚、粘连；扫描层次中胸椎、胸壁骨未见异常。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓欠光整，肝S2、S3、S7、S8可见多个低密度病灶，较大者约5MM×7MM，增强后未见强化。肝内胆管正常，其内未见结石影，胆囊不大，内未见结石，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾所见正常。两肾下腺所见正常。腹主动脉旁未见肿大淋巴结。</t>
@@ -5123,7 +5123,7 @@
     <t>右下气管旁,右侧肺门及右上肺叶多个淋巴结,肝脏S5,S8,L5及左侧坐骨体,L3左份</t>
   </si>
   <si>
-    <t>肺癌放化疗后复查：左肺下叶病变，符合肺癌治疗后改变，较前缩小。左下肺后段结节，考虑转移，较前缩小。右肺上叶背段类结节，考虑增殖灶可能，建议复查。两肺下叶多发高密度影，考虑放射性肺炎。纵隔、左肺门数个淋巴结，考虑转移瘤，较前缩小。肝多发稍低密度灶，考虑小囊肿可能。肺癌放化疗后，结合2017-02-18MMR片：左肺下叶尖段见一不规则团块灶，边界欠清，大小约27MM×19MM，呈分叶状，边缘见毛刺征，密度不均，增强扫描不均匀强化，内可见无强化坏死区，邻近肋胸膜受牵拉，病灶较前缩小。左下肺后段近支气管旁另见一类圆形结节，边界较清，大小15MM×14MM，密度欠均，增强扫描不均匀强化。右肺上叶背段见数个类结节，直径约2-3MM，边界尚清。两肺下叶见多发斑片状、磨玻璃样稍高密度影，边界模糊，密度不均匀，以左肺下叶为主。气管、支气管分支尚通畅。左气管食管沟、左下上气管旁、隆突上、左肺门见数个淋巴结，较大者约14MM×17MM，部分边界欠清，密度不均，增强扫描不均匀强化，较前缩小。两侧胸腔未见积液，右侧胸膜无明显增厚。肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，肝S4、7、8见多发小囊状稍低密度灶，边界尚清，大者直径约6MM，增强扫描无明显强化。肝内胆管未见扩张，其内未见结石影，胆囊不大，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾及两肾下腺大小、形态未见异常，密度均匀。膈脚后、腹腔干、腹主动脉旁未见肿大淋巴结。扫描所见骨质未见破坏征象。</t>
+    <t>肺癌放化疗后复查：_x0004_左肺下叶病变，符合肺癌治疗后改变，较前缩小。_x0004_左下肺后段结节，考虑转移，较前缩小。_x0004_右肺上叶背段类结节，考虑增殖灶可能，建议复查。_x0004_两肺下叶多发高密度影，考虑放射性肺炎。_x0004_纵隔、左肺门数个淋巴结，考虑转移瘤，较前缩小。_x0004_肝多发稍低密度灶，考虑小囊肿可能。肺癌放化疗后，结合2017-02-18MMR片：_x0004_左肺下叶尖段见一不规则团块灶，边界欠清，大小约27MM×19MM，呈分叶状，边缘见毛刺征，密度不均，增强扫描不均匀强化，内可见无强化坏死区，邻近肋胸膜受牵拉，病灶较前缩小。_x0004_左下肺后段近支气管旁另见一类圆形结节，边界较清，大小15MM×14MM，密度欠均，增强扫描不均匀强化。右肺上叶背段见数个类结节，直径约2-3MM，边界尚清。_x0004_两肺下叶见多发斑片状、磨玻璃样稍高密度影，边界模糊，密度不均匀，以左肺下叶为主。气管、支气管分支尚通畅。_x0004_左气管食管沟、左下上气管旁、隆突上、左肺门见数个淋巴结，较大者约14MM×17MM，部分边界欠清，密度不均，增强扫描不均匀强化，较前缩小。_x0004_两侧胸腔未见积液，右侧胸膜无明显增厚。_x0004_肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，肝S4、7、8见多发小囊状稍低密度灶，边界尚清，大者直径约6MM，增强扫描无明显强化。肝内胆管未见扩张，其内未见结石影，胆囊不大，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾及两肾下腺大小、形态未见异常，密度均匀。膈脚后、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_扫描所见骨质未见破坏征象。</t>
   </si>
   <si>
     <t>27MM×19MM</t>
@@ -5153,7 +5153,7 @@
     <t>左下肺叶切除术后，对比2013-1-15片：左侧斜裂胸膜较明显增厚，较前变化不大。右上肺膈面下小类结节灶，大致同前，考虑增殖灶可能大。右肺下叶舌段斑片状病变，考虑炎症。两锁下及纵隔内数个小淋巴结，大致同前。肝内多个小类圆形低密度区，考虑小囊肿。胃底体下部大弯侧胃壁结节，间质瘤？较前未见明显变化。左下肺叶切除术后，对比2013-1-15片：左肺体积缩小，纵隔稍向左侧偏移，左中肺残见少许索条影，左侧斜裂不均匀增厚，内见条状高密度金属影，较前变化不大。右下肺透亮度稍增高，见多发小圆形透亮区，大致同前。右上肺膈面下见小类结节灶，大小约4MM×5MM，边界清，大致同前。右肺下叶舌段见斑片状病变，边界欠清。气管及右肺各叶支气管分枝通畅，未见明显软组织肿物或受压变窄。两锁下、血管前、两上气管旁、主动脉旁、隆突上可见多个淋巴结，最大者短径约为7MM，边界尚清，较前变化不大。两侧胸腔未见积液。左侧胸膜稍增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内见散在数个小类圆形低密度区，直径约3MM~6MM，边界清，增强后未见明确强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。胃底体下部大弯侧胃壁见结节状突起，密度不均匀，见点状钙化，大小约9MM×10MM，增强后较明显强化，较前未见明显变化。左侧第6肋骨质不连续，呈术后改变。余扫描范围内胸椎、胸壁骨及软组织未见异常。</t>
   </si>
   <si>
-    <t>1、结肠癌术后，吻合口未见明确复发征象。2、①右肺上叶背段及左肺下叶后段软组织占位，代谢活跃，首先考虑为恶性可能大。②纵隔4R、7组及右肺门密度较高小淋巴结代谢活跃，性质待定。3、肝顶部小低密度灶，常规显像及延迟显像均未见异常高代谢，鉴于受呼吸运动影响，会一定程度低估肝顶部病变的代谢程度，建议进一步结合增强扫描。4、两颈部淋巴结反应性增生；左肺上叶基底段钙化灶；轻度脂肪肝；前列腺钙化。空腹6小时以下，静脉注射显像剂，平静休息60MMin后行躯干PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：口咽部双侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺双叶不大，形态可，腺实质内未见异常放射性增高灶。两颈部多发小淋巴结显示，伴摄取。两锁骨下区未见明显异常淋巴结浓聚。双肺显影清晰，肺纹理正常，右肺上叶背段见软组织肿块影，推挤左肺上叶背段支气管致其狭窄，该病灶可见分叶，内见钙化，较大层面约4.4CM×3.7CM大小，呈环形不均匀放射性分布异常浓聚，最大SUV：6.2。左肺下叶后段尚可见一类圆形钙化结节，约1.1CM×1.0CM大小，伴摄取增高，最大SUV：2.5。左肺上叶基底段散在钙化灶。纵隔4R、7组及右肺门淋巴结摄取增高，诸淋巴结密度均较高，均未见明显肿大，较大者位于4R组，约1.7CM×0.8CM大小。心肌显影清晰。气管居中。胸膜无增厚，胸水征阴性。未见胸部软组织异常影像。胃充盈欠佳，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝实质密度普遍性轻度减低，约43-46H，肝顶部见一模糊稍低密度结节，直径约0.6CM，边界欠清，常规显像及延迟显像均未见异常高摄取。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。双侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。双侧肾下腺显影大致正常。结肠癌术后，吻合口周围肠壁未见异常增厚及放射性分布浓聚灶。腹腔内及腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常，膀胱壁无增厚。盆腔内及双侧腹股沟无异常淋巴结显示。前列腺大小正常，内见钙化，放射性分布大致正常。视野内轴心骨未见异常放射性浓聚。下、上肢关节带大致正常。</t>
+    <t>1、结肠癌术后，吻合口未见明确复发征象。2、①右肺上叶背段及左肺下叶后段软组织占位，代谢活跃，首先考虑为恶性可能大。②纵隔4R、7组及右肺门密度较高小淋巴结代谢活跃，性质待定。3、肝顶部小低密度灶，常规显像及延迟显像均未见异常高代谢，鉴于受呼吸运动影响，会一定程度低估肝顶部病变的代谢程度，建议进一步结合增强扫描。4、两颈部淋巴结反应性增生；左肺上叶基底段钙化灶；轻度脂肪肝；前列腺钙化。空腹6小时以下，静脉注射显像剂，平静休息60MMin后行躯干PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：口咽部双侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺双叶不大，形态可，腺实质内未见异常放射性增高灶。两颈部多发小淋巴结显示，伴摄取。两锁骨下区未见明显异常淋巴结浓聚。双肺显影清晰，肺纹理正常，右肺上叶背段见软组织肿块影，推挤左肺上叶背段支气管致其狭窄，该病灶可见分叶，内见钙化，较大层面约4.4CM×3.7CM大小，呈环形不均匀放射性分布异常浓聚，最大SUV：6.2。左肺下叶后段尚可见一类圆形钙化结节，约1.1CM×1.0CM大小，伴摄取增高，最大SUV:2.5。左肺上叶基底段散在钙化灶。纵隔4R、7组及右肺门淋巴结摄取增高，诸淋巴结密度均较高，均未见明显肿大，较大者位于4R组，约1.7CM×0.8CM大小。心肌显影清晰。气管居中。胸膜无增厚，胸水征阴性。未见胸部软组织异常影像。胃充盈欠佳，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝实质密度普遍性轻度减低，约43-46H，肝顶部见一模糊稍低密度结节，直径约0.6CM，边界欠清，常规显像及延迟显像均未见异常高摄取。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。双侧肾脏显影可，肾实质密度均匀，肾盂、肾盏及输尿管无扩张。双侧肾下腺显影大致正常。结肠癌术后，吻合口周围肠壁未见异常增厚及放射性分布浓聚灶。腹腔内及腹膜后未见明显肿大淋巴结。腹水征阴性。膀胱放射性浓聚如常，膀胱壁无增厚。盆腔内及双侧腹股沟无异常淋巴结显示。前列腺大小正常，内见钙化，放射性分布大致正常。视野内轴心骨未见异常放射性浓聚。下、上肢关节带大致正常。</t>
   </si>
   <si>
     <t>右肺上叶背段,左肺下叶后段</t>
@@ -5174,10 +5174,10 @@
     <t>左乳实质占位-考虑MT；两侧腋窝淋巴结肝肋上斜切118MM/（－），剑上纵切60MM/2指，肝区回声稍增强增粗，门脉主干内径10MM，左支内径7MM，流速0.19MM/s，主干及右左支血流通畅，为向肝血流，流速曲线正常，脾门处脾静脉内径5MM，血流通畅。肝静脉血流通畅。脾肋间切36MM/（－）。左侧乳腺腺体结构尚正常，8-9点见14MM×10MM低回声团块，边界不清，呈蟹足样，局部与后方肌层关系密切，CDFI示周边少量短线状彩色血流，测及RI1.0。右侧乳腺腺体结构尚正常，未见明显肿块回声。CDFI示两侧乳腺腺体血流分布尚正常。两侧腋窝见数个低回声团块，左侧最大7MM×5MM，右侧最大12MM×6MM，CDFI示血流分布尚正常。</t>
   </si>
   <si>
-    <t>左肺下叶尖段磨玻璃密度灶，增殖灶可能性大。右肺下叶前段磨玻璃密度灶，性质待定，建议定期复查。左肺中叶、右肺下叶、左肺上叶少许纤维灶。甲状腺两叶内稍低密度灶，考虑结节性甲状腺肿可能性大。肝多发囊肿。两肾囊肿，部分合并出血。左肾下腺类结节灶（2个），考虑腺瘤可能性大。两肺纹理清晰，左肺下叶尖段一片状磨玻璃密度灶，大小约19MM×14MM，边界欠清，病灶内见条片状高密度影。右肺下叶前段见一片状磨玻璃密度灶，大小约21MM×18MM，边界欠清，病灶密度均匀，未见明显实变影。左肺中叶、右肺下叶舌段、左肺上叶后基底段见少许条索灶，边界清，与邻近胸膜粘连。气管及支气管分支通畅。两侧锁骨下区、两肺门及纵隔、两侧腋窝未见肿大淋巴结。两侧胸腔未见积液。两侧胸膜无增厚、粘连。心包未见积液。所示甲状腺两叶内见数个类结节稍低密度灶，大者直径约16MM，边界欠清，密度欠均匀，未见明显强化，增强扫描部分明显强化，部分轻度强化。肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，肝内见多发类圆形低密度灶，大者直径约30MM，界清，未见强化。肝内胆管未见扩张，其内未见结石影，胆囊不大，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾见数个类圆形低密度灶及高密度灶，界清，大者直径约11MM，增强扫描未见强化。左肾下腺见2个类结节灶，大小分别约17MM×12MM、13MM×8MM，边界尚清，密度呈低密度，增强扫描轻度强化。右肾下腺大小、形态未见异常，密度均匀。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描所见骨质未见破坏征象。</t>
-  </si>
-  <si>
-    <t>左下肺癌术后化疗后复查：左肺下叶术后缺失，左肺门、左中上肺条索状、片条状影，考虑术后改变，较前未见明显变化。右肺上叶类结节灶，考虑增殖灶可能性大，较前未见明显变化。纵隔多发小淋巴结，较前未见明显变化。左侧胸膜略增厚。左侧第7肋腋段斑片状灶，较前未见明显变化。左侧第5肋腋段、第6后肋呈术后改变。胆囊结石。左下肺癌术后化疗后复查，与2015-7-8片对比：左肺下叶术后缺失，左侧肺门及左中肺纵隔旁、左肺上叶见条索状及片条状高密度影，边界尚清晰，其内见线状致密影，较前未见明显变化。右肺上叶外基底见2个类结节灶（S5-48/57），边界清晰，较大者直径约6MM，较前未见明显变化。左肺下叶支气管截断，气管及余支气管分支通畅，未见明显软组织肿物或受压变窄。两上气管旁、主肺动脉窗、食管旁见数个小淋巴结，边界欠清，较大者短径约8MM，增强扫描轻度强化，较前未见明显变化。两侧胸腔未见积液，左侧胸膜略增厚、粘连；右侧胸膜无增厚。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀。肝内胆管未见扩张，其内未见结石。胆囊大小未见异常，内见一结节状高密度灶，边界清，直径约3MM。胆总管未见扩张，其内未见结石。肝门区结构未见异常。门静脉未见异常。脾大小形态未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾、两肾下腺未见异常。腹主动脉旁未见肿大淋巴结。左侧第7肋腋段见斑片状致密灶，大致同前。左侧第5肋腋段、第6后肋呈术后改变。余扫描所见骨质未见明确破坏征象。</t>
+    <t>左肺下叶尖段磨玻璃密度灶，增殖灶可能性大。_x0004_右肺下叶前段磨玻璃密度灶，性质待定，建议定期复查。_x0004_左肺中叶、右肺下叶、左肺上叶少许纤维灶。_x0004_甲状腺两叶内稍低密度灶，考虑结节性甲状腺肿可能性大。_x0004_肝多发囊肿。_x0004_两肾囊肿，部分合并出血。_x0004_左肾下腺类结节灶（2个），考虑腺瘤可能性大。_x0004_两肺纹理清晰，左肺下叶尖段一片状磨玻璃密度灶，大小约19MM×14MM，边界欠清，病灶内见条片状高密度影。_x0004_右肺下叶前段见一片状磨玻璃密度灶，大小约21MM×18MM，边界欠清，病灶密度均匀，未见明显实变影。_x0004_左肺中叶、右肺下叶舌段、左肺上叶后基底段见少许条索灶，边界清，与邻近胸膜粘连。_x0004_气管及支气管分支通畅。两侧锁骨下区、两肺门及纵隔、两侧腋窝未见肿大淋巴结。_x0004_两侧胸腔未见积液。两侧胸膜无增厚、粘连。心包未见积液。_x0004_所示甲状腺两叶内见数个类结节稍低密度灶，大者直径约16MM，边界欠清，密度欠均匀，未见明显强化，增强扫描部分明显强化，部分轻度强化。_x0004_肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，肝内见多发类圆形低密度灶，大者直径约30MM，界清，未见强化。肝内胆管未见扩张，其内未见结石影，胆囊不大，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。_x0004_两肾见数个类圆形低密度灶及高密度灶，界清，大者直径约11MM，增强扫描未见强化。_x0004_左肾下腺见2个类结节灶，大小分别约17MM×12MM、13MM×8MM，边界尚清，密度呈低密度，增强扫描轻度强化。右肾下腺大小、形态未见异常，密度均匀。_x0004_膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_扫描所见骨质未见破坏征象。</t>
+  </si>
+  <si>
+    <t>左下肺癌术后化疗后复查：_x0004_左肺下叶术后缺失，左肺门、左中上肺条索状、片条状影，考虑术后改变，较前未见明显变化。_x0004_右肺上叶类结节灶，考虑增殖灶可能性大，较前未见明显变化。_x0004_纵隔多发小淋巴结，较前未见明显变化。_x0004_左侧胸膜略增厚。_x0004_左侧第7肋腋段斑片状灶，较前未见明显变化。_x0004_左侧第5肋腋段、第6后肋呈术后改变。胆囊结石。左下肺癌术后化疗后复查，与2015-7-8片对比：_x0004_左肺下叶术后缺失，左侧肺门及左中肺纵隔旁、左肺上叶见条索状及片条状高密度影，边界尚清晰，其内见线状致密影，较前未见明显变化。_x0004_右肺上叶外基底见2个类结节灶（S5-48/57），边界清晰，较大者直径约6MM，较前未见明显变化。_x0004_左肺下叶支气管截断，气管及余支气管分支通畅，未见明显软组织肿物或受压变窄。_x0004_两上气管旁、主肺动脉窗、食管旁见数个小淋巴结，边界欠清，较大者短径约8MM，增强扫描轻度强化，较前未见明显变化。_x0004_两侧胸腔未见积液，左侧胸膜略增厚、粘连；右侧胸膜无增厚。_x0004_肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀。_x0004_肝内胆管未见扩张，其内未见结石。胆囊大小未见异常，内见一结节状高密度灶，边界清，直径约3MM。胆总管未见扩张，其内未见结石。_x0004_肝门区结构未见异常。门静脉未见异常。_x0004_脾大小形态未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。_x0004_两肾、两肾下腺未见异常。_x0004_腹主动脉旁未见肿大淋巴结。_x0004_左侧第7肋腋段见斑片状致密灶，大致同前。_x0004_左侧第5肋腋段、第6后肋呈术后改变。余扫描所见骨质未见明确破坏征象。</t>
   </si>
   <si>
     <t>右肾癌术后，术区未见明确肿物。两肺转移瘤，较前未见明显变化。纵隔小淋巴结，较前未见明显变化。左心房内异常密度影，可疑栓子，范围大致同前。甲状腺右叶病灶，考虑为结节性甲状腺肿。腰1椎体压缩性骨折，大致同前。右肾癌肺转移6程化疗后，与2012.12.10片比较：右肾缺失，局部未见明确软组织肿物。左肾及两侧肾下腺形态、大小及密度未见异常。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝实质内未见明显异常密度灶及异常强化灶。肝内胆管未见扩张，胆囊不大，胆总管未见扩张，其内未见结石影。肝门区及门静脉未见明显异常。脾脏及胰腺大小、形态、密度未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。子宫大小、形态未见明显异常，子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。两侧腹股沟区、髂血管旁未见肿大淋巴结。两肺纹理清晰，左下肺及右上肺见数个小结节影，直径约为2MM~4MM，边界欠清楚，较前未见明显变化。气管及支气管分支通畅。两上气管旁、主动脉弓旁见数个小淋巴结，最大约6MM×8MM，边界清楚，较前未见明显变化。两侧胸腔未见积液。两侧胸膜未见增厚、粘连。左心房内见团块状异常密度影，平扫呈稍高密度，增强扫描未见明显强化，大致同前。所示甲状腺右叶见一类圆形低密度病灶，大小约为8MM×11MM，增强后未见明显强化。腰1椎体变扁呈楔形，椎体内见散在斑点斑块状致密影，大致同前。余所见骨质未见明确破坏征象。</t>
@@ -5204,13 +5204,13 @@
     <t>脑</t>
   </si>
   <si>
-    <t>右上肺癌术后、化疗后，与2012-01-05对比：右侧胸膜稍增厚，较前无明显变化。左肺中叶和上叶少许斑片状影，考虑炎症，大致同前。肝内低密度灶，考虑肝囊肿。右肾上极结节，考虑血管平滑肌脂肪瘤可能性大；左肾囊肿。右侧肾下腺小结节，较前未见明显变化。右上肺癌术后、化疗后复查：右上肺缺失，右上肺野见散在少许条索影，边清。左肺中叶和左上肺后基底段可见斑片状影，边缘欠清。气管及左肺、右下肺支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。右侧胸膜增厚，左侧胸膜无增厚、粘连。右侧胸壁骨呈术后改变。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。肝内见散在几个小圆形低密度灶，直径约3MM~6MM，边界清楚，增强扫描未见强化。同前对比，未见明显变化。肝内外胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影。肝门区正常。肝静脉、门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾上极见一稍低密度影，大小9MM×10MM，边界尚清，其内可见小片状极低密度影，增强扫描不均匀强化。左肾实质内见散在多个类圆形低密度灶，最大者约23MM×25MM，边界清楚，增强扫描未见强化。右侧肾下腺见一结节，大小7MM×11MM，密度欠均匀，增强轻度强化，较前未见明显变化；左侧肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。</t>
+    <t>右上肺癌术后、化疗后，与2012-01-05对比：_x0004_右侧胸膜稍增厚，较前无明显变化。_x0004_左肺中叶和上叶少许斑片状影，考虑炎症，大致同前。_x0004_肝内低密度灶，考虑肝囊肿。_x0004_右肾上极结节，考虑血管平滑肌脂肪瘤可能性大；左肾囊肿。_x0004_右侧肾下腺小结节，较前未见明显变化。右上肺癌术后、化疗后复查：_x0004_右上肺缺失，右上肺野见散在少许条索影，边清。_x0004_左肺中叶和左上肺后基底段可见斑片状影，边缘欠清。_x0004_气管及左肺、右下肺支气管分支通畅。_x0004_两肺门及纵隔未见明显肿大淋巴结。_x0004_两侧胸腔未见积液。右侧胸膜增厚，左侧胸膜无增厚、粘连。_x0004_右侧胸壁骨呈术后改变。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。_x0004_肝内见散在几个小圆形低密度灶，直径约3MM~6MM，边界清楚，增强扫描未见强化。同前对比，未见明显变化。_x0004_肝内外胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影。_x0004_肝门区正常。肝静脉、门静脉未见异常。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。_x0004_右肾上极见一稍低密度影，大小9MM×10MM，边界尚清，其内可见小片状极低密度影，增强扫描不均匀强化。左肾实质内见散在多个类圆形低密度灶，最大者约23MM×25MM，边界清楚，增强扫描未见强化。右侧肾下腺见一结节，大小7MM×11MM，密度欠均匀，增强轻度强化，较前未见明显变化；左侧肾下腺未见异常。_x0004_膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。</t>
   </si>
   <si>
     <t>左肺癌切除术后，对比2016-02-23片：左肺术后改变，左中上肺少许索条及斑片灶，大致同前，考虑纤维增殖性病灶。右下肺舌段条索影，考虑纤维增殖灶。两肺局限性肺气肿。左侧少量胸腔积液，左侧胸膜稍增厚，大致同前。肝脏未见明确病变。两肾多发囊肿。左肺癌切除术后复查：左肺下叶缺如，残肺膨胀良好，左侧斜裂胸膜稍增厚；左中肺及左上肺见不规则条片影，边界欠清。右下肺舌段见条索影；右肺下叶、两肺上叶胸膜上见局限性类圆形透亮度增加区，大致同前，两肺未见明显结节影。气管、左中、上叶及右肺各叶支气管分枝通畅。两侧肺门及纵隔未见明确肿大淋巴结。左侧胸膜轻度增厚，左侧胸腔见少量积液，较前变化不大。右侧胸腔未见积液，右侧胸膜未见增厚。肝脏大小正常，各叶比例在正常范围以内，外形轮廓光整，密度均匀。肝内胆管未见扩张。胆囊大小正常，其内未见结石影。胆总管未见扩张，其内未见结石头影。肝门区未见异常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态及密度未见异常。两肾见数个囊性灶，最大者大小约15MM×11MM，边界清晰，密度均匀，未见强化。两肾动脉壁见散在钙化斑。两侧肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围未见明显骨质破坏。</t>
   </si>
   <si>
-    <t>None“肺肉瘤样癌外院放化疗后”复查，对比2017-07-04片：1、右肺放射性炎症并局限性肺不张，肺不张范围较前明显增大。2、右侧大量胸腔积液并部分包裹性积液形成，较前明显增多。左侧少量胸腔积液、少量心包积液较前新发。3、左肺上叶炎性病变，范围较前增大。4、左肺中叶条片状肺不张，范围较前增大。5、两侧肋胸膜、纵隔胸膜不均匀增厚，考虑转移瘤，累及心包膜、右第3前肋、右侧第8后肋骨及周围背部背部，较前增大。6、纵隔向左移位。7、右侧膈面上移，右肾、脾脏受压上移。8、子宫萎缩。两侧会阴部囊性灶，长径约22MM、23MM，考虑前庭大腺，较前相仿。9、盆底少量积液。</t>
+    <t>None“肺肉瘤样癌外院放化疗后”复查，对比2017-07-04片：_x0004_1、右肺放射性炎症并局限性肺不张，肺不张范围较前明显增大。_x0004_2、右侧大量胸腔积液并部分包裹性积液形成，较前明显增多。左侧少量胸腔积液、少量心包积液较前新发。_x0004_3、左肺上叶炎性病变，范围较前增大。_x0004_4、左肺中叶条片状肺不张，范围较前增大。_x0004_5、两侧肋胸膜、纵隔胸膜不均匀增厚，考虑转移瘤，累及心包膜、右第3前肋、右侧第8后肋骨及周围背部背部，较前增大。_x0004_6、纵隔向左移位。_x0004_7、右侧膈面上移，右肾、脾脏受压上移。_x0004_8、子宫萎缩。两侧会阴部囊性灶，长径约22MM、23MM，考虑前庭大腺，较前相仿。_x0004_9、盆底少量积液。_x0004_</t>
   </si>
   <si>
     <t>两侧肋胸膜,纵隔胸膜</t>
@@ -5279,7 +5279,7 @@
     <t>右肾癌术后化疗后，与2013-2-26片对比：右肾癌术后，术区未见明确肿物。左肺下叶尖段条索、类结节影，较前未见明显变化，考虑增殖性病变可能性大。右肺上叶后基底段结节，较前未见明显变化。右锁骨下窝、纵隔小淋巴结，较前未见明显变化。左心房内异常密度影，较前未见明显变化。甲状腺两叶病灶，考虑结节性甲状腺肿。腰1椎体压缩性骨折，较前未见明显变化。右肾癌术后化疗后，与2013-2-26片对比，右肾术后缺失，局部未见明确软组织肿物。左肾及两侧肾下腺未见异常。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝实质内未见明显异常密度灶及异常强化灶。肝内胆管未见扩张，胆囊不大，胆总管未见扩张，其内未见结石影。肝门区及门静脉未见明显异常。脾脏及胰腺大小、形态、密度未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。子宫大小、形态未见明显异常，子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。两侧腹股沟区、髂血管旁未见肿大淋巴结。两肺纹理清晰，左肺下叶尖段见条索、类结节影，大者直径约3MM，边界清楚，边缘不规整，与邻近胸膜牵拉粘连，较前未见明显变化。右肺上叶后基底段见一小结节，直径约为3MM，边界清楚，边缘规整，较前未见明显变化。气管及支气管分支通畅。右锁骨下窝、左上气管旁、主动脉旁见数个小淋巴结，最大约6MM×8MM，边界清楚，较前未见明显变化。两侧胸腔未见积液。两侧胸膜未见增厚、粘连。左心房内见团块状异常密度影，平扫呈稍高密度，增强扫描未见明显强化，较前未见明显变化。扫描层面内甲状腺两叶见多个结节状低密度病灶，最大者约为8MM×11MM，增强后轻度强化或强化不明显。腰1椎体变扁呈楔形，椎体内见散在斑点斑块状致密影，较前未见明显变化。余所见骨质未见明确破坏征象。</t>
   </si>
   <si>
-    <t>右肺癌综合治疗后，与2016-09-05日片对比：右残肺少许纤维增殖灶，大致同前。左肺数个小类结节灶，较前变化不大。右锁下、纵隔数个淋巴结，较前变化不大。右侧胸腔少量积液，右侧胸膜稍增厚，大致同前。甲状腺右叶病灶，考虑结节性甲状腺肿，大致同前。肝S2、7小囊肿。胆囊结石。右肾囊肿。胸10椎体右侧稍高密度灶，较前相仿。右肺癌综合治疗后，与2016-09-05日片对比：右肺下叶术后缺失，右下肺支气管残端未见明确肿物。右肺上叶见少许纤维条索，边界清晰，未见明确结节影。左肺见数个类结节，较大者直径约3MM，边界清，较前未见明显变化。气管及支气管分支通畅。右侧锁骨下、血管前、左下上气管旁、主动脉旁见多个淋巴结，最大者短径约9MM，边界清，密增强后见较明显强化，较前未见明显变化。右侧胸腔见少量积液，较前变化不明显。左侧胸腔未见积液。右上胸膜稍增厚，大致同前。扫描所见甲状腺右叶见2个结节，较大者约14MM×12MM，边界清晰，未见强化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S2、S7肝左静脉旁见囊性灶，直径约3MM，边界清楚，增强后未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，胆囊内见小结石影，胆总管未见扩张，其内未见结石影。肝门区正常；门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见一囊性灶，大小约7MM×4MM，边界清，增强扫描未见强化，左肾、两肾下腺未见异常。腹主动脉旁未见肿大淋巴结。胸10椎体右侧见一稍高密度灶，直径约2MM，边界清，较前相仿。余扫描层面未见明确骨质破坏征象。</t>
+    <t>右肺癌综合治疗后，与2016-09-05日片对比：_x0004_右残肺少许纤维增殖灶，大致同前。_x0004_左肺数个小类结节灶，较前变化不大。_x0004_右锁下、纵隔数个淋巴结，较前变化不大。_x0004_右侧胸腔少量积液，右侧胸膜稍增厚，大致同前。_x0004_甲状腺右叶病灶，考虑结节性甲状腺肿，大致同前。_x0004_肝S2、7小囊肿。胆囊结石。右肾囊肿。_x0004_胸10椎体右侧稍高密度灶，较前相仿。右肺癌综合治疗后，与2016-09-05日片对比：_x0004_右肺下叶术后缺失，右下肺支气管残端未见明确肿物。右肺上叶见少许纤维条索，边界清晰，未见明确结节影。左肺见数个类结节，较大者直径约3MM，边界清，较前未见明显变化。气管及支气管分支通畅。_x0004_右侧锁骨下、血管前、左下上气管旁、主动脉旁见多个淋巴结，最大者短径约9MM，边界清，密增强后见较明显强化，较前未见明显变化。_x0004_右侧胸腔见少量积液，较前变化不明显。左侧胸腔未见积液。右上胸膜稍增厚，大致同前。_x0004_扫描所见甲状腺右叶见2个结节，较大者约14MM×12MM，边界清晰，未见强化。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S2、S7肝左静脉旁见囊性灶，直径约3MM，边界清楚，增强后未见强化。_x0004_肝内胆管正常，其内未见结石影，胆囊大小正常，胆囊内见小结石影，胆总管未见扩张，其内未见结石影。肝门区正常；门静脉未见异常。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。_x0004_右肾见一囊性灶，大小约7MM×4MM，边界清，增强扫描未见强化，左肾、两肾下腺未见异常。_x0004_腹主动脉旁未见肿大淋巴结。_x0004_胸10椎体右侧见一稍高密度灶，直径约2MM，边界清，较前相仿。余扫描层面未见明确骨质破坏征象。</t>
   </si>
   <si>
     <t>右肺MT病例，右肺门区肿块并右肺肺不张、肺炎，右肺门、纵隔及两侧锁骨下区多发肿大淋巴结，较前2015-01-12片增大；右侧胸膜上及左肺多发结节灶，转移瘤机会大；左侧胸腔积液；肝右叶占位，转移瘤可能。右肺下叶见软组织肿块，右肺下叶支气管截断，病变远端见楔形密度增高影，右肺下叶舌段及上肺见片状高密度，边缘模糊，相应部位胸膜增厚，局部胸膜上见结节状软组织影，纵隔内胸廓入口处、气管前腔静脉后、主肺动脉窗及两侧锁骨下区示多发肿大淋巴结影，部分相互融合，头臂干血管呈受压性改变，左肺内胸膜上示多发结节状密度增高影，最大者约11MM，边界清，左侧胸腔见积液。扫描野内肝右叶示团块状低密度影。</t>
@@ -5300,13 +5300,13 @@
     <t>右侧顶叶</t>
   </si>
   <si>
-    <t>None肺类癌化疗后，与2016-5-20片对比：1、两肺多发结节并钙化灶，大小约2MM~9MM，考虑转移瘤，大致同前。2、两锁下、纵隔及两肺门多发淋巴结肿大，考虑转移，部分融合成团，最大约36MM×37MM，较前变化不大；气管呈支架置入术后改变。3、肝S6病灶，约60MM×55MM，考虑转移瘤，较前增大。4、肝S5、6小低密度灶，考虑囊肿，同前相仿。5、左肾结石，两肾囊肿。6、膈脚后、肝门区、腹腔干周围、腹主动脉旁多发淋巴结，短径约4MM~15MM，部分较前增大。7、两侧髂血管旁、右侧腹股沟多发肿大淋巴结，大者短径约19MM，考虑转移，部分较前缩小，部分较前增大，部分同前相仿。8、两颈II~V区肿大淋巴结，最大者约25MM×19MM，考虑转移，较前增大。9、甲状腺两叶增大并多发结节，较前未见明显变化。10、胸骨、多个胸椎、腰椎、骶椎、肋骨及两侧髂骨、左侧耻骨、两侧坐骨、股骨多发骨质破坏，考虑转移瘤，其中右侧第8肋骨软组织肿块较前增大，约48MM×37MM，余同前变化不大。</t>
+    <t>None肺类癌化疗后，与2016-5-20片对比：_x0004_1、两肺多发结节并钙化灶，大小约2MM~9MM，考虑转移瘤，大致同前。_x0004_2、两锁下、纵隔及两肺门多发淋巴结肿大，考虑转移，部分融合成团，最大约36MM×37MM，较前变化不大；气管呈支架置入术后改变。_x0004_3、肝S6病灶，约60MM×55MM，考虑转移瘤，较前增大。_x0004_4、肝S5、6小低密度灶，考虑囊肿，同前相仿。_x0004_5、左肾结石，两肾囊肿。_x0004_6、膈脚后、肝门区、腹腔干周围、腹主动脉旁多发淋巴结，短径约4MM~15MM，部分较前增大。_x0004_7、两侧髂血管旁、右侧腹股沟多发肿大淋巴结，大者短径约19MM，考虑转移，部分较前缩小，部分较前增大，部分同前相仿。_x0004_8、两颈II~V区肿大淋巴结，最大者约25MM×19MM，考虑转移，较前增大。_x0004_9、甲状腺两叶增大并多发结节，较前未见明显变化。_x0004_10、胸骨、多个胸椎、腰椎、骶椎、肋骨及两侧髂骨、左侧耻骨、两侧坐骨、股骨多发骨质破坏，考虑转移瘤，其中右侧第8肋骨软组织肿块较前增大，约48MM×37MM，余同前变化不大。</t>
   </si>
   <si>
     <t>两肺,两锁下,纵隔及两肺门多发淋巴结,肝S6病灶,两侧髂血管旁,右侧腹股沟多发肿大淋巴结,两颈II~V区肿大淋巴结,胸骨,多个胸椎,腰椎,骶椎,肋骨,两侧髂骨,左侧耻骨,两侧坐骨,股骨</t>
   </si>
   <si>
-    <t>右上肺癌术后5年复查：左肺中叶及上叶病灶，考虑炎症可能大，左上肺病灶较前吸收减少。右下肺叶前段、左肺散在类结节，考虑增殖灶可能性大。左肺门及纵隔淋巴结较前未见明显变化。两侧胸膜增厚，大致同前。肝多发囊肿。右肾囊肿。右上肺癌术后复查，与2016-10-20对比：右上肺叶术后缺如，右侧胸廓稍缩小，右残肺充气良好，左肺中叶及上叶纹理增粗、紊乱，见多发斑片及条片灶，边界欠清，与前片对比，左肺上叶病灶较前吸收减少，左肺中叶病灶较前未见明显变化。右肺见散在斑片、条索状灶，边界不清，局部肺纹理增多紊乱，较前未见明显变化。右下肺叶前段、左肺见散在类结节灶，直径约2~3MM，边界欠清，轮廓欠光整，左上肺病变较前增多，余较前未见明显变化。气管、所示支气管及其分枝通畅。左侧气管食管沟、血管前、隆突上、左肺门见淋巴结，大者短径约10MM，均匀强化，较前未见明显变化。右侧胸稍增厚，内可见钙化灶及多个类圆形结节影，边界清，增强后强化，大者短径约4MM。左侧胸腔未见积液，左侧胸膜不均匀增厚。肝内见多个类圆形低密度灶，最大者约为24MM×22MM，边界清楚，增强扫描未见明显强化。肝内外胆管未见扩张。胆囊大小正常，壁光滑，未见异常密度灶。脾脏大小正常，密度均匀。胰腺大小、形态、密度未见异常。右肾见多个类圆形囊性灶，最大者约为6MM×3MM，边界清，增强扫描未见强化。左肾及两侧肾下腺未见异常。腹膜后未见明显肿大淋巴结。腰3椎体下缘见低密度区，边界清晰，与下方椎间盘关系密切。余扫描层面内未见明显骨质破坏。</t>
+    <t>右上肺癌术后5年复查：_x0004_左肺中叶及上叶病灶，考虑炎症可能大，左上肺病灶较前吸收减少。_x0004_右下肺叶前段、左肺散在类结节，考虑增殖灶可能性大。_x0004_左肺门及纵隔淋巴结较前未见明显变化。_x0004_两侧胸膜增厚，大致同前。_x0004_肝多发囊肿。_x0004_右肾囊肿。右上肺癌术后复查，与2016-10-20对比：_x0004_右上肺叶术后缺如，右侧胸廓稍缩小，右残肺充气良好，左肺中叶及上叶纹理增粗、紊乱，见多发斑片及条片灶，边界欠清，与前片对比，左肺上叶病灶较前吸收减少，左肺中叶病灶较前未见明显变化。右肺见散在斑片、条索状灶，边界不清，局部肺纹理增多紊乱，较前未见明显变化。右下肺叶前段、左肺见散在类结节灶，直径约2~3MM，边界欠清，轮廓欠光整，左上肺病变较前增多，余较前未见明显变化。_x0004_气管、所示支气管及其分枝通畅。_x0004_左侧气管食管沟、血管前、隆突上、左肺门见淋巴结，大者短径约10MM，均匀强化，较前未见明显变化。_x0004_右侧胸稍增厚，内可见钙化灶及多个类圆形结节影，边界清，增强后强化，大者短径约4MM。左侧胸腔未见积液，左侧胸膜不均匀增厚。_x0004_肝内见多个类圆形低密度灶，最大者约为24MM×22MM，边界清楚，增强扫描未见明显强化。肝内外胆管未见扩张。胆囊大小正常，壁光滑，未见异常密度灶。脾脏大小正常，密度均匀。胰腺大小、形态、密度未见异常。_x0004_右肾见多个类圆形囊性灶，最大者约为6MM×3MM，边界清，增强扫描未见强化。左肾及两侧肾下腺未见异常。腹膜后未见明显肿大淋巴结。_x0004_腰3椎体下缘见低密度区，边界清晰，与下方椎间盘关系密切。余扫描层面内未见明显骨质破坏。</t>
   </si>
   <si>
     <t>右上肺叶</t>
@@ -5315,10 +5315,10 @@
     <t>左上肺癌术后化疗后：左肺、右肺叶小类结节灶，考虑增殖灶，较前未见明显变化。右肺上叶及左肺中叶少许纤维增殖灶。左上胸膜稍增厚。两侧锁骨下区、纵隔及肺门小淋巴结，较前未见明显变化。肝小囊肿。两肾囊肿。左上肺癌术后化疗后，与2015-07-01片对比：左肺上叶术后缺如，左肺上叶支气管中断，断端见金属密影，未见明确软组织肿块影或异常强化灶。左肺、右肺叶见散在小类结节灶，短径约3MM，边界欠清，密度欠均匀，较前未见明显变化；右肺上叶及左肺中叶尚见少许条索影，边界欠清。气管及余支气管分支未见明显狭窄及异常扩张。两侧锁骨下区、左侧气管食管沟、左下气管旁、主肺动脉窗、两侧肺门见数个小淋巴结，短径约3~6MM，边界清，密度均匀。两侧胸腔未见积液。左上胸膜稍增厚。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝内见数个小类圆形低密度灶，直径约2~4MM，边界清，密度均匀，未见强化。肝内胆管未见扩张，其内未见结石。胆囊大小未见异常，其内未见结石。胆总管未见扩张，其内未见结石。肝门区结构未见异常。门静脉未见充盈缺损。脾大小未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾见多发小囊性低密度病变，较大者短径约10MM，边界清，增强未见强化。右侧肾下腺见结节状稍增粗。左肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围内骨质未见破坏征象。</t>
   </si>
   <si>
-    <t>右下肺叶切除术后：原右侧支气管残端上缘软组织灶已不明显。右侧胸腔少许包裹性积液，较前减少。右侧胸膜稍增厚，考虑术后反应性改变。左肺及右肺上叶少许纤维增殖灶。左肺中叶、两肺上叶钙化灶。右肺门小结节，较前缩小。纵隔小淋巴结，部分缩小。肝S3囊肿。右下肺叶切除术后：右肺下叶术后缺如，右肺下叶支气管残端见条状金属灶。右肺门见小结节大小约9MM×15MM，较2017.5.23片明显缩小。右侧少许包裹性，较前明显减少；右侧胸膜稍增厚；左肺及右肺上叶见少许条索灶，边界模糊；左肺中叶、两肺上叶见颗粒状高密度钙化灶，边界清。左侧下上气管旁、右上气管旁、主肺动脉窗、隆突上、左肺门见散在淋巴结，边界清，密度均匀，较大者短径约6MM。部分缩小。左侧胸腔未见积液。左侧胸膜无增厚、粘连。肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，肝S3见囊性灶，界清，直径4MM，未见强化。肝内胆管未见扩张，其内未见结石影，胆囊不大，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾及两肾下腺大小、形态未见异常，密度均匀。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。右侧第7肋呈术后改变，余扫描所见骨质未见破坏征象</t>
-  </si>
-  <si>
-    <t>左肺癌化疗后复查，与2016-06-15对比：左上肺背段肿物，较前明显缩小。左肺上叶前基底段胸膜上病灶，较前新发，考虑炎症可能性大，建议复查。右肺下叶、左肺中叶及两肺上叶散在类结节及条索灶，考虑纤维增殖灶可能。两下肺肺大泡。肝囊肿。两肾囊肿。肺癌化疗后复查：左上肺后基底段见一肿物，大小约30MM×25MM，浅分叶，可见细小毛刺，内密度不均，见斑点状、小片状钙化灶；增强后轻度强化；左肺上叶后基底段支气管分支受压变窄。左肺上叶前基底段胸膜上见斑片状密度增高影，边界不清，与邻近胸膜粘连；另右肺下叶尖后段、左肺中叶、两肺上叶见多发散在的类结节及条索灶；两下肺见多发无肺纹理透亮区，边界清。气管及余支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。右侧胸膜无增厚、粘连。心包未见积液。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，其内见散在多发低密度灶，直径约2MM~5MM，边界清，增强未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾见多发数个囊性低密度灶，较大直径约15MM，边界清，增强无强化。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。腰椎向右侧弯，所见骨质未见破坏征象。</t>
+    <t>右下肺叶切除术后：_x0004_原右侧支气管残端上缘软组织灶已不明显。_x0004_右侧胸腔少许包裹性积液，较前减少。_x0004_右侧胸膜稍增厚，考虑术后反应性改变。_x0004_左肺及右肺上叶少许纤维增殖灶。_x0004_左肺中叶、两肺上叶钙化灶。_x0004_右肺门小结节，较前缩小。纵隔小淋巴结，部分缩小。_x0004_肝S3囊肿。右下肺叶切除术后：_x0004_右肺下叶术后缺如，右肺下叶支气管残端见条状金属灶。右肺门见小结节大小约9MM×15MM，较2017.5.23片明显缩小。_x0004_右侧少许包裹性，较前明显减少；右侧胸膜稍增厚；左肺及右肺上叶见少许条索灶，边界模糊；左肺中叶、两肺上叶见颗粒状高密度钙化灶，边界清。_x0004_左侧下上气管旁、右上气管旁、主肺动脉窗、隆突上、左肺门见散在淋巴结，边界清，密度均匀，较大者短径约6MM。部分缩小。_x0004_左侧胸腔未见积液。左侧胸膜无增厚、粘连。_x0004_肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，肝S3见囊性灶，界清，直径4MM，未见强化。肝内胆管未见扩张，其内未见结石影，胆囊不大，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。_x0004_脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。_x0004_两肾及两肾下腺大小、形态未见异常，密度均匀。_x0004_膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_右侧第7肋呈术后改变，余扫描所见骨质未见破坏征象</t>
+  </si>
+  <si>
+    <t>左肺癌化疗后复查，与2016-06-15对比：_x0004_左上肺背段肿物，较前明显缩小。_x0004_左肺上叶前基底段胸膜上病灶，较前新发，考虑炎症可能性大，建议复查。_x0004_右肺下叶、左肺中叶及两肺上叶散在类结节及条索灶，考虑纤维增殖灶可能。_x0004_两下肺肺大泡。_x0004_肝囊肿。_x0004_两肾囊肿。肺癌化疗后复查：_x0004_左上肺后基底段见一肿物，大小约30MM×25MM，浅分叶，可见细小毛刺，内密度不均，见斑点状、小片状钙化灶；增强后轻度强化；左肺上叶后基底段支气管分支受压变窄。左肺上叶前基底段胸膜上见斑片状密度增高影，边界不清，与邻近胸膜粘连；另右肺下叶尖后段、左肺中叶、两肺上叶见多发散在的类结节及条索灶；两下肺见多发无肺纹理透亮区，边界清。气管及余支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。右侧胸膜无增厚、粘连。心包未见积液。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，其内见散在多发低密度灶，直径约2MM~5MM，边界清，增强未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾见多发数个囊性低密度灶，较大直径约15MM，边界清，增强无强化。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_腰椎向右侧弯，所见骨质未见破坏征象。</t>
   </si>
   <si>
     <t>左上肺后基底段</t>
@@ -5327,7 +5327,7 @@
     <t>胸部PET/CT显像示：右肺MT综合治疗后，与2011-8-29本院PET/CT图像相比，右肺上叶膨胀不全与前相仿，右肺胸膜结节较前进一步缩小。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行胸部PET/CT断层显像：胸部PET/CT图像示两肺纹理清晰，右肺上叶后侧基底段部分膨胀不全的斑片模糊影，最大SUV值为1.3g/mL，与2011-06-28本院胸部PET/CT图像所示病灶相仿，右侧胸膜结节较前进一步缩小，右侧斜裂处结节较前缩小。余处未见明显糖代谢异常增高灶及占位性病变。两侧胸腔无积液。心脏不大。胸部骨骼PET图像未见异常糖代谢增强。CT平扫骨窗示胸部所示诸骨未见明显骨质破坏吸收征象。</t>
   </si>
   <si>
-    <t>右肺癌化疗后，对比2017-5-16CT：右上肺前基底段病变较前变化不大。右上肺近肺门区梭状软组织灶较前增大；其周围多发小结节，考虑转移。右肺下叶及左肺上叶小结节，较前稍增大，考虑转移。右下肺小条索灶较前变化不明显，建议复查。左肺下叶后段磨玻璃影，大致同前，建议随诊。左侧锁骨下区、纵隔多发淋巴结，较前变化不大。右肺门淋巴结较前稍增大。肝囊肿。右肺癌化疗后，与2017-5-16片对比：右肺上叶前基底段见不规则结节状、片状病灶，边界不清，最大层面大小约12MM×8MM，边缘呈分叶状，增强扫描不均匀强化，紧贴斜裂胸膜，较前变化不明显；右肺上叶近肺门区见梭状软组织灶，边界稍模糊，大小约26MM×13MM，病灶累及右侧斜裂胸膜，增强扫描不均匀强化，范围较前增大，周围见多个小结节；右上肺见少许斑片状稍高密度影，边界不清，范围较前增大。右下肺（se7-20）见一小结节，边界清，直径约4MM，较前稍增大。右下肺另见小条索灶（se7-26），边界模糊，较前变化不明显。左肺下叶后段见一磨玻璃影，直径约5MM，大致同前。左肺上叶内基底段见结节，直径约3MM，较前稍增大。右肺上叶前内基底段支气管变窄，气管及其余支气管分支通畅。右肺门见一淋巴结，边界稍模糊，短径约6MM，较前稍增大；左侧锁骨下区、两下上气管旁、血管前、主动脉弓旁、主肺动脉窗、隆突上见多发淋巴结，部分边界不清，大者短径约5MM，轻度强化，同前相仿。两侧胸腔未见积液，左侧胸膜未见明显增厚。心包未见明显积液。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内见多个低密度灶，边界清，大者直径约9MM，未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾及两肾下腺未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。扫描范围未见骨质破坏征象。</t>
+    <t>右肺癌化疗后，对比2017-5-16CT：_x0004_右上肺前基底段病变较前变化不大。_x0004_右上肺近肺门区梭状软组织灶较前增大；其周围多发小结节，考虑转移。_x0004_右肺下叶及左肺上叶小结节，较前稍增大，考虑转移。_x0004_右下肺小条索灶较前变化不明显，建议复查。_x0004_左肺下叶后段磨玻璃影，大致同前，建议随诊。_x0004_左侧锁骨下区、纵隔多发淋巴结，较前变化不大。_x0004_右肺门淋巴结较前稍增大。_x0004_肝囊肿。右肺癌化疗后，与2017-5-16片对比：_x0004_右肺上叶前基底段见不规则结节状、片状病灶，边界不清，最大层面大小约12MM×8MM，边缘呈分叶状，增强扫描不均匀强化，紧贴斜裂胸膜，较前变化不明显；右肺上叶近肺门区见梭状软组织灶，边界稍模糊，大小约26MM×13MM，病灶累及右侧斜裂胸膜，增强扫描不均匀强化，范围较前增大，周围见多个小结节；右上肺见少许斑片状稍高密度影，边界不清，范围较前增大。右下肺（se7-20）见一小结节，边界清，直径约4MM，较前稍增大。右下肺另见小条索灶（se7-26），边界模糊，较前变化不明显。左肺下叶后段见一磨玻璃影，直径约5MM，大致同前。左肺上叶内基底段见结节，直径约3MM，较前稍增大。右肺上叶前内基底段支气管变窄，气管及其余支气管分支通畅。_x0004_右肺门见一淋巴结，边界稍模糊，短径约6MM，较前稍增大；左侧锁骨下区、两下上气管旁、血管前、主动脉弓旁、主肺动脉窗、隆突上见多发淋巴结，部分边界不清，大者短径约5MM，轻度强化，同前相仿。_x0004_两侧胸腔未见积液，左侧胸膜未见明显增厚。心包未见明显积液。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内见多个低密度灶，边界清，大者直径约9MM，未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉未见异常。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾及两肾下腺未见异常。_x0004_膈脚后、腹主动脉旁未见肿大淋巴结。_x0004_扫描范围未见骨质破坏征象。</t>
   </si>
   <si>
     <t>12MM×8MM,26MM×13MM</t>
@@ -5351,13 +5351,13 @@
     <t>左上肺癌术后化疗后，与2013-10-18片比较：左肺中叶及右肺下叶小结节，大致同前。左肺中叶散在索条影，考虑纤维增殖灶。两肺各级支气管普遍稍扩张，大致同前。左侧胸膜轻度增厚，左侧胸腔少量积液，大致同前。肝内多发囊肿。右肾小囊肿。左侧第4、5前肋术后改变。左上肺癌术后化疗后，与2013-10-18片比较：左肺上叶术后缺失，左肺下中叶充气良好。左肺中叶边缘见少许斑片灶、条索病灶，与胸膜粘连。左肺中叶、右肺下叶见数个小结节影，直径约2MM~3MM，轮廓光整，密度均匀，较前未见明显变化。两侧各级支气管普遍管腔稍扩张。两肺门及纵隔未见明显肿大淋巴结。左侧胸腔少量积液，大致同前，左侧胸膜轻度增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝内见多发类圆形低密灶，边界清，最大者直径约13MM，边界清，增强扫描未见强化。胆囊大小正常，其内未见结石，肝内胆管、胆总管未见扩张，其内未见结石。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见小低密灶，边界清，短径约3MM，边界清，增强扫描未见强化，左肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见明显肿大淋巴结。左侧第4、5前肋见斜行线样高密度影，较前未见明显变化。</t>
   </si>
   <si>
-    <t>直肠癌术后肺转移、肝转移综合治疗后，对比2016-07-20片：左下肺病灶，较前增大；左中肺及上肺多发病灶，较前未见明显变化。右肺下叶前段小钙化灶，考虑良性。肝S4、S7病灶，考虑消融术后改变，较前未见明显变化。肝S7结节，考虑血管瘤。肝S7肝内胆管结石。甲状腺左叶病变，较前未见明显变化。直肠癌术后改变，未见复发征象。直肠癌术后肺转移、肝转移综合治疗后，对比2016-07-20片：左肺下叶见一结节灶，大小约28MM×22MM，形态不规则，边界不清，密度不均匀，增强扫描不均匀强化，病灶周围见多发条索灶，与邻近胸膜牵拉粘连，较前增大。左肺上叶前基底段见一结节，大小约20MM×16MM，边界不清，密度不均匀，增强扫描轻度强化，较前未见明显变化。左肺中叶胸膜上及上叶后基底段各见不规则病灶，大小约7MM×8MM、12MM×11MM，内见空洞影，边缘模糊，周围见条索灶，与邻近胸膜粘连，较前变化不大。右肺下叶前段（Se8，Im148）见一小致密影，直径约3MM。气管及支气管分支通畅。左下气管旁、两上气管旁见数个淋巴结，大者短径约12MM，密度欠均匀，强化明显，较前相仿。两侧胸腔未见积液。两侧胸膜未见增厚。两侧乳腺术后缺失，两侧腋窝未见肿大淋巴结。甲状腺左叶体积增大，见一稍低密度结节，大小约16MM×13MM，边界清楚，增强扫描较明显强化，大致同前。肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝S4、S7各见一斑片状低密度病变，较大者大小约26MM×16MM，边界清晰，增强扫描未见强化，大致同前。肝S7下述病灶前缘见一结节，大小约13MM×9MM，边界清楚，增强扫描动脉期结节样强化，门脉期、延迟期仍明显强化。肝S7另见一颗粒状致密灶。肝内外胆管未见扩张，胆囊不大，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾及胰腺未见异常。两肾及两侧肾下腺未见异常。肝门区及腹膜后未见肿大淋巴结。直肠癌术后，吻合口区肠壁未见明显增厚，肠周间隙清晰。膀胱充盈良好，境界清楚。子宫、宫颈大小、形态未见异常，宫腔内见金属节育环。两侧附件区未见明确肿块。两侧腹股沟区及两侧髂血管旁未见肿大淋巴结。扫描范围内未见明确骨质破坏。</t>
-  </si>
-  <si>
-    <t>心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号心功能正常心超声检测值：LA   28MM       AO     28MM        MV E 0.37MM/s     EF 62%LV   51MM       IVS     8MM           A 0.42MM/s     FS 34% RA   27MM       LVPW    8MMRV   18MM       PA     23MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图未见异常。</t>
-  </si>
-  <si>
-    <t>肝左叶巨块型HCC，肝左静脉及门脉左支局部受累，较17-03-07相仿；肝右内叶强化小结节，异常灌注可能，请随访；肝脏及两肾囊肿。双肺多发小结节。肝左叶可见一异常团块灶，范围约14.4CM×11.8CM×14.9CM，T1WI为低信号，其内见斑片状高信号，T2WI为混杂略高信号，边界较清楚，动态增强早期见病灶明显异常强化，门脉期及延迟期呈相对低信号，后期可见环形包膜强化，肝左静脉及门脉左支显示不清；肝左叶见小类圆形长T1长T2信号灶，未见明显强化。肝右内叶可见数枚斑点状动脉期异常强化灶，其余各序列未见显示。脾脏未见明显增大，信号尚均匀；胰腺无异常，两侧肾脏见多发类圆形长T2无强化灶，较大一枚约2.2CM；后腹膜未见肿大淋巴结；腹腔内无积液。双肺见多发细小结节。</t>
+    <t>直肠癌术后肺转移、肝转移综合治疗后，对比2016-07-20片：_x0004_左下肺病灶，较前增大；左中肺及上肺多发病灶，较前未见明显变化。_x0004_右肺下叶前段小钙化灶，考虑良性。_x0004_肝S4、S7病灶，考虑消融术后改变，较前未见明显变化。_x0004_肝S7结节，考虑血管瘤。_x0004_肝S7肝内胆管结石。_x0004_甲状腺左叶病变，较前未见明显变化。_x0004_直肠癌术后改变，未见复发征象。直肠癌术后肺转移、肝转移综合治疗后，对比2016-07-20片：_x0004_左肺下叶见一结节灶，大小约28MM×22MM，形态不规则，边界不清，密度不均匀，增强扫描不均匀强化，病灶周围见多发条索灶，与邻近胸膜牵拉粘连，较前增大。左肺上叶前基底段见一结节，大小约20MM×16MM，边界不清，密度不均匀，增强扫描轻度强化，较前未见明显变化。左肺中叶胸膜上及上叶后基底段各见不规则病灶，大小约7MM×8MM、12MM×11MM，内见空洞影，边缘模糊，周围见条索灶，与邻近胸膜粘连，较前变化不大。右肺下叶前段（Se8，Im148）见一小致密影，直径约3MM。_x0004_气管及支气管分支通畅。左下气管旁、两上气管旁见数个淋巴结，大者短径约12MM，密度欠均匀，强化明显，较前相仿。两侧胸腔未见积液。两侧胸膜未见增厚。两侧乳腺术后缺失，两侧腋窝未见肿大淋巴结。甲状腺左叶体积增大，见一稍低密度结节，大小约16MM×13MM，边界清楚，增强扫描较明显强化，大致同前。_x0004_肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝S4、S7各见一斑片状低密度病变，较大者大小约26MM×16MM，边界清晰，增强扫描未见强化，大致同前。肝S7下述病灶前缘见一结节，大小约13MM×9MM，边界清楚，增强扫描动脉期结节样强化，门脉期、延迟期仍明显强化。肝S7另见一颗粒状致密灶。肝内外胆管未见扩张，胆囊不大，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾及胰腺未见异常。两肾及两侧肾下腺未见异常。肝门区及腹膜后未见肿大淋巴结。_x0004_直肠癌术后，吻合口区肠壁未见明显增厚，肠周间隙清晰。膀胱充盈良好，境界清楚。_x0004_子宫、宫颈大小、形态未见异常，宫腔内见金属节育环。两侧附件区未见明确肿块。_x0004_两侧腹股沟区及两侧髂血管旁未见肿大淋巴结。扫描范围内未见明确骨质破坏。</t>
+  </si>
+  <si>
+    <t>心脏结构及运动未见异常_x0004__x0004_各房室腔及大血管未探及异常血流信号_x0004__x0004_心功能正常心超声检测值：_x0004__x0004_LA   28MMAO     28MMV E 0.37MM/s     EF 62%_x0004__x0004_LV   51MMIVS     8MMA 0.42m/s     FS 34% _x0004__x0004_RA   27MMLVPW    8MM_x0004__x0004_RV   18MMPA     23MM_x0004__x0004__x0004__x0004_二维及Ｍ型超声心动图特征：_x0004__x0004_升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；_x0004__x0004_各房室腔径正常。_x0004__x0004_室壁厚度及运动正常。房、室间隔连续性完好。_x0004__x0004_各组瓣膜形态、结构及运动正常。_x0004__x0004_心包及心包腔未见异常。_x0004__x0004_彩色及频谱多普勒超声心动图未见异常。</t>
+  </si>
+  <si>
+    <t>肝左叶巨块型HCC，肝左静脉及门脉左支局部受累，较17-03-07相仿；肝右内叶强化小结节，异常灌注可能，请随访；_x0004_肝脏及两肾囊肿。双肺多发小结节。肝左叶可见一异常团块灶，范围约14.4CM×11.8CM×14.9CM，T1WI为低信号，其内见斑片状高信号，T2WI为混杂略高信号，边界较清楚，动态增强早期见病灶明显异常强化，门脉期及延迟期呈相对低信号，后期可见环形包膜强化，肝左静脉及门脉左支显示不清；肝左叶见小类圆形长T1长T2信号灶，未见明显强化。肝右内叶可见数枚斑点状动脉期异常强化灶，其余各序列未见显示。脾脏未见明显增大，信号尚均匀；胰腺无异常，两侧肾脏见多发类圆形长T2无强化灶，较大一枚约2.2CM；后腹膜未见肿大淋巴结；腹腔内无积液。双肺见多发细小结节。</t>
   </si>
   <si>
     <t>宫颈癌疗后：1、双肺高代谢结节，T7骨质破坏伴高代谢，均考虑转移。2、双肺另见微小结节，未见高代谢，随访。3、宫颈局部未见明显高代谢。盆腔髂血管旁小淋巴结未见高代谢。4、甲状腺右叶上极代谢轻度增高，右锁骨下小淋巴结未见高代谢，建议B超随访。5、肝多发囊肿。右肾皮质区钙化点。L5、骶骨隐性裂。空腹6小时以下，静脉注射显像剂，平静休息59MMin后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：大脑形态如常，皮层各叶放射性分布均匀。皮层上各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，双侧小脑对称。口咽部双侧腺体显影对称，鼻咽部无异常放射性浓聚。甲状腺双叶不大，形态可，甲状腺右叶上极放射性增高，最大SUV2.6，余腺实质内未见异常放射性增高灶。右锁骨下区见数个小淋巴结，较大者约0.5CM×1.0CM，未见明显放射性增高。余颈部及锁骨下区未见明显异常淋巴结浓聚。双肺显影清晰，肺纹理正常，左肺上叶、右肺下叶近肺门处见大小不等异常浓聚结节，最大SUV3.3，8.9，大小为1.1CM×1.1CM和2.7CM×2.5CM，右肺下叶结节远端见片状模糊影。左肺上叶基底段、右肺上叶背段另见微小结节，小于5MM，未见明显放射性摄取。气管居中。胸膜无增厚，胸水征阴性。双侧乳腺轻度显影，双侧大致对称，乳腺区未见异常浓聚灶。心肌显影清晰。胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝内多发大小不等囊性低密度灶，放射性稀疏，较大者约8.7CM×7.2CM，并向肝外突出，肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。肝门结构正常。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。双侧肾脏显影可，右肾皮质区见钙化点，左肾实质密度均匀，肾盂、肾盏及输尿管无扩张。双侧肾下腺显影大致正常。腹部可见条索状肠影。腹膜后未见明显肿大淋巴结。腹水征阴性。腹壁软组织未见明显异常影像。膀胱放射性浓聚如常，膀胱壁无增厚。双侧腹股沟无异常淋巴结显示。宫颈癌放疗后，宫颈局部未见异常浓聚灶，子宫体部无异常放射性浓聚。双侧附件区未见异常放射性摄取。双侧髂血管旁见小淋巴结，未见明显放射性增高，较大者位于右侧，约0.5CM×1.2CM。T7椎体局部骨质破坏伴异常浓聚，最大SUV8.9。L4/5椎间隙狭窄，左侧椎体终板硬化伴轻度摄取，余视野内骨质未见异常浓聚，L5、骶骨放射性减低，L5、骶管后部骨质不连续，骶管内见液性低密度灶，放射性稀疏。</t>
@@ -5366,7 +5366,7 @@
     <t>T7,左肺上叶,右肺下叶近肺门处</t>
   </si>
   <si>
-    <t>贲门肿胀；十二指肠球部霜斑样溃疡；慢性非萎缩性胃炎。插镜情况：顺利。送达部位：十二指肠降部。食　　管：黏膜光滑，舒缩好，NBI观察未见明显异常区域。贲　　门：开闭好，E-G线清楚，右后壁粘膜充血肿胀，活检1块。胃　　底：黏液湖稍浑，所见黏膜光滑，未见静脉曲张。胃　　体：黏膜光滑，未见糜烂、溃疡或肿物。胃　　角：弧形，光滑。胃　　窦：蠕动好，黏膜稍充血肿胀，未见糜烂、溃疡或肿物。幽　　门：圆，开放状。球　　部：球腔形态正常，小弯侧前壁见霜斑样溃疡，粘膜充血肿胀，余黏膜未见异常。降　　部：黏膜未见异常。请4个工作日后到2号楼6楼病理科取活检结果。</t>
+    <t>贲门肿胀；_x0004__x0004_十二指肠球部霜斑样溃疡；_x0004__x0004_慢性非萎缩性胃炎。插镜情况：顺利。_x0004__x0004_送达部位：十二指肠降部。_x0004__x0004_食　　管：黏膜光滑，舒缩好，NBI观察未见明显异常区域。_x0004__x0004_贲　　门：开闭好，E-G线清楚，右后壁粘膜充血肿胀，活检1块。_x0004__x0004_胃　　底：黏液湖稍浑，所见黏膜光滑，未见静脉曲张。_x0004__x0004_胃　　体：黏膜光滑，未见糜烂、溃疡或肿物。_x0004__x0004_胃　　角：弧形，光滑。_x0004__x0004_胃　　窦：蠕动好，黏膜稍充血肿胀，未见糜烂、溃疡或肿物。_x0004__x0004_幽　　门：圆，开放状。_x0004__x0004_球　　部：球腔形态正常，小弯侧前壁见霜斑样溃疡，粘膜充血肿胀，余黏膜未见异常。_x0004__x0004_降　　部：黏膜未见异常。_x0004__x0004_请4个工作日后到2号楼6楼病理科取活检结果。</t>
   </si>
   <si>
     <t>左肺癌术后复查：左侧大量胸腔积液；左上肺膨胀不全并部分实变；左侧广泛胸膜增厚，较前明显，转移待排，建议随诊；纵隔及左肺门多发小淋巴结，较前相仿；肝S4、8强化灶，考虑异常灌注，较前无明显变化。左上肺癌术后复查，与2013-12-30片对比：左侧胸腔及叶间裂见大量水样低密度影，部分包裹。左残肺容积缩小，左上肺野纹理增粗，见条索及斑片影，边缘模糊。右肺纹理清晰，未见明显实质性病变。两上气管旁、主肺动脉旁及左肺门见数个小淋巴结，大者直径约9MM，境界清楚，强化较明显。右侧未见胸腔积液。左侧胸膜不均匀增厚，强化较明显。肝脏形态、比例正常，轮廓光整，密度均匀，增强扫描动脉期见肝S4、8内见数个结节状明显强化灶，直径约4MM~7MM，门脉及延迟期呈等密度，较前相仿。余肝实质内未见明显异常强化。肝内外胆管无扩张，胆囊不大，未见明显结石，胆总管未扩张。肝门区未见明显异常。门静脉未见明显异常。脾大小未见明显异常，密度均匀。胰腺大小、形态未见明显异常，密度均匀。两肾未见明显异常。两侧肾下腺未见明显异常。腹腔干、腹主动脉旁、肠系膜根部未见明显肿大淋巴结。所示骨质未见明显破坏征象。</t>
@@ -5378,7 +5378,7 @@
     <t>右侧锁骨下,纵隔,两肺门多发淋巴结</t>
   </si>
   <si>
-    <t>左下肺癌术后复查：吻合线旁、左侧纵隔旁软组织影，较前稍增大，压迫下腔静脉。纵隔及左肺门肿大淋巴结，部分较前增大。左侧少量胸腔积液，部分包裹性。左侧胸膜稍增厚。肝S5结节，较前增大，考虑转移。肝S5、S8低密度灶，肝囊肿可能，同前。左侧第6肋术后改变。颈部未见异常。左下肺癌术后复查，对比2017-3-3片：左下肺术后部分缺失，吻合线旁、左侧纵隔旁可见不规则软组织影，范围约29MM×22MM，边界不清，增强呈中度不均匀强化，较前增大，包绕、压迫下腔静脉。左肺门见多个淋巴结，边界不清，部分与下述病灶分界不清，较大范围约27MM×18MM，增强可见不均匀强化，包绕左侧支气管，左上支气管局部受压变窄。右肺纹理清晰，肺内未见实质性病变。气管及余支气管分支未见明确受压、阻塞。两侧锁骨下、左下气管旁、右上气管旁、隆突上见多发淋巴结，部分边界欠清，短径约10MM，均匀强化。左侧胸膜不均匀增厚，左侧胸腔可见少量积液，部分呈楔形。右侧胸膜未见增厚，右侧胸腔未见积液。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。肝S5见结节影，大者约33MM×24MM，可见中度强化，边界不清，较前增大。肝S5、S8见一类圆形低密度灶，直径约4MM，边界清楚，未见明显强化。肝内胆管、胆总管未见扩张，其内未见结石，胆囊大小正常，其内未见结石。肝门区未见异常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾、两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见明显肿大淋巴结。左侧第6肋呈术后改变，余扫描所见骨质未见破坏征象。颈部结构清晰，各血管充盈良好。甲状腺两叶及峡部形态正常，密度均匀，未见明确病变。喉咽腔形态正常，两侧真假声带未见增厚，前联合未见增厚，梨状窝对称。两侧颌上腺、腮腺大小形态正常，密度均匀。颈部肌群排列对称，密度均匀，肌间隙未见明显异常。颈部未见肿大淋巴结。</t>
+    <t>左下肺癌术后复查：吻合线旁、左侧纵隔旁软组织影，较前稍增大，压迫下腔静脉。_x0004_纵隔及左肺门肿大淋巴结，部分较前增大。_x0004_左侧少量胸腔积液，部分包裹性。左侧胸膜稍增厚。_x0004_肝S5结节，较前增大，考虑转移。_x0004_肝S5、S8低密度灶，肝囊肿可能，同前。_x0004_左侧第6肋术后改变。_x0004_颈部未见异常。左下肺癌术后复查，对比2017-3-3片：_x0004_左下肺术后部分缺失，吻合线旁、左侧纵隔旁可见不规则软组织影，范围约29MM×22MM，边界不清，增强呈中度不均匀强化，较前增大，包绕、压迫下腔静脉。左肺门见多个淋巴结，边界不清，部分与下述病灶分界不清，较大范围约27MM×18MM，增强可见不均匀强化，包绕左侧支气管，左上支气管局部受压变窄。_x0004_右肺纹理清晰，肺内未见实质性病变。气管及余支气管分支未见明确受压、阻塞。_x0004_两侧锁骨下、左下气管旁、右上气管旁、隆突上见多发淋巴结，部分边界欠清，短径约10MM，均匀强化。左侧胸膜不均匀增厚，左侧胸腔可见少量积液，部分呈楔形。右侧胸膜未见增厚，右侧胸腔未见积液。_x0004_肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。肝S5见结节影，大者约33MM×24MM，可见中度强化，边界不清，较前增大。肝S5、S8见一类圆形低密度灶，直径约4MM，边界清楚，未见明显强化。肝内胆管、胆总管未见扩张，其内未见结石，胆囊大小正常，其内未见结石。肝门区未见异常。门静脉未见异常。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾、两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见明显肿大淋巴结。_x0004_左侧第6肋呈术后改变，余扫描所见骨质未见破坏征象。_x0004_颈部结构清晰，各血管充盈良好。甲状腺两叶及峡部形态正常，密度均匀，未见明确病变。喉咽腔形态正常，两侧真假声带未见增厚，前联合未见增厚，梨状窝对称。两侧颌上腺、腮腺大小形态正常，密度均匀。颈部肌群排列对称，密度均匀，肌间隙未见明显异常。颈部未见肿大淋巴结。</t>
   </si>
   <si>
     <t>肝S5</t>
@@ -5396,10 +5396,10 @@
     <t>双侧髂骨,左股骨颈</t>
   </si>
   <si>
-    <t>脂肪肝。右肾囊肿。胆囊、脾脏、胰腺、左肾、膀胱、前列腺、两侧肾下腺区未见明显占位病变声像。两侧输尿管未见明确扩张。肝脏体积不大，边缘变钝，实质光点回声前场细密，后场衰减，肝静脉走行尚自然，管腔稍变细，显示欠清晰，肝内胆管不扩张。CDFI：肝动脉、门静脉血流通畅，为向肝血流信号，充盈良好，肝内未见明确异常血流信号。门静脉最大血流速度约26CM/s。胆囊大小形态正常，囊壁不厚，胆囊内未见明显异常回声。脾脏大小形态正常，包膜光滑，实质回声均匀，未见明显异常回声。胰腺大小形态正常，实质回声均匀，未见明显异常回声。两肾大小形态正常，实质回声均匀，右肾中部可见一无回声灶，大小约8MM×8MM，边界清，突向肾外方，内部透声可，后方回声增强。左肾未见明显异常回声。CDFI：两肾血流呈珊瑚状，未见明确异常血流信号。两侧输尿管未见明确扩张。膀胱充盈良好，膀胱壁光滑，不厚，膀胱腔内未见明确肿物回声。前列腺稍大，形态饱满，大小约46MM×29MM×26MM，包膜光滑，实质回声欠均匀，未见明确肿物回声。两侧肾下腺区未见明确异常占位病变。</t>
-  </si>
-  <si>
-    <t>直肠癌术后肺转移、肝转移综合治疗后，对比2017-3-2片：左下肺病灶，较前增大；左中肺及上肺多发病灶，较前未见明显变化。两肺新增多发小结节，考虑转移瘤。右肺下叶前段小钙化灶。左侧锁骨下窝、纵隔、左肺门多发淋巴结，较前增大、增多，考虑转移。肝S4、S7病灶，考虑消融术后改变，较前未见明显变化。肝S7结节，考虑血管瘤。肝S7肝内胆管结石。甲状腺左叶病变，较前未见明显变化。直肠癌术后改变。直肠癌术后肺转移、肝转移综合治疗后，对比2017-3-2片：左肺下叶见一肿块，大小约59MM×33MM，边界欠清，分叶状，增强扫描不均匀轻度强化，病灶周围见多发条索灶，与邻近胸膜牵拉粘连，较前增大。左肺上叶前基底段见一结节，大小约20MM×16MM，边界不清，密度不均匀，增强扫描轻度强化，较前未见明显变化。左肺中叶胸膜上及上叶后基底段各见不规则病灶，大小约7MM×8MM、12MM×11MM，内见空洞影，边缘模糊，周围见条索灶，与邻近胸膜粘连，较前变化不大。右肺下叶前段见一小致密影，直径约3MM，较前未见明显变化。两肺见散在多发新增小结节，直径约2-6MM，边界清楚，密度均匀。气管及支气管分支通畅。左侧锁骨下窝、两侧下上气管旁、主动脉旁、左肺门见数个淋巴结，大者短径约18MM，强化明显，较前增大、增多。两侧胸腔未见积液，胸膜未见增厚。两侧乳腺术后缺失，两侧腋窝未见肿大淋巴结。甲状腺左叶体积增大，见一稍低密度结节，大小约16MM×13MM，边界清楚，增强扫描较明显强化，大致同前。肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝S4、S7各见一斑片状低密度病变，较大者大小约19MM×11MM，边界清晰，增强扫描未见强化，大致同前。肝S7下述病灶前缘见一结节，大小约13MM×9MM，边界清楚，增强扫描动脉期结节样强化，门脉期、延迟期仍明显强化。肝S7另见一颗粒状致密灶。肝内外胆管未见扩张，胆囊不大，内未见异常密度灶。肝门区、门静脉未见异常。脾、胰腺、两肾及两侧肾下腺未见异常。肝门区及腹膜后未见肿大淋巴结。直肠癌术后，吻合口区肠壁未见明显增厚，肠周间隙清晰。膀胱充盈良好，境界清楚。子宫、宫颈大小、形态未见异常，宫腔内见金属节育环。两侧附件区未见明确肿块。两侧腹股沟区及两侧髂血管旁未见肿大淋巴结。扫描范围内未见明确骨质破坏。</t>
+    <t>脂肪肝。_x0004__x0004_右肾囊肿。_x0004__x0004_胆囊、脾脏、胰腺、左肾、膀胱、前列腺、两侧肾下腺区未见明显占位病变声像。_x0004__x0004_两侧输尿管未见明确扩张。_x0004__x0004__x0004__x0004_肝脏体积不大，边缘变钝，实质光点回声前场细密，后场衰减，肝静脉走行尚自然，管腔稍变细，显示欠清晰，肝内胆管不扩张。_x0004__x0004_CDFI：肝动脉、门静脉血流通畅，为向肝血流信号，充盈良好，肝内未见明确异常血流信号。门静脉最大血流速度约26CM/s。_x0004__x0004_胆囊大小形态正常，囊壁不厚，胆囊内未见明显异常回声。_x0004__x0004_脾脏大小形态正常，包膜光滑，实质回声均匀，未见明显异常回声。_x0004__x0004_胰腺大小形态正常，实质回声均匀，未见明显异常回声。_x0004__x0004_两肾大小形态正常，实质回声均匀，右肾中部可见一无回声灶，大小约8MM×8MM，边界清，突向肾外方，内部透声可，后方回声增强。左肾未见明显异常回声。_x0004__x0004_CDFI：两肾血流呈珊瑚状，未见明确异常血流信号。_x0004__x0004_两侧输尿管未见明确扩张。_x0004__x0004_膀胱充盈良好，膀胱壁光滑，不厚，膀胱腔内未见明确肿物回声。_x0004__x0004_前列腺稍大，形态饱满，大小约46MM×29MM×26MM，包膜光滑，实质回声欠均匀，未见明确肿物回声。_x0004__x0004_两侧肾下腺区未见明确异常占位病变。</t>
+  </si>
+  <si>
+    <t>直肠癌术后肺转移、肝转移综合治疗后，对比2017-3-2片：_x0004_左下肺病灶，较前增大；左中肺及上肺多发病灶，较前未见明显变化。_x0004_两肺新增多发小结节，考虑转移瘤。右肺下叶前段小钙化灶。_x0004_左侧锁骨下窝、纵隔、左肺门多发淋巴结，较前增大、增多，考虑转移。_x0004_肝S4、S7病灶，考虑消融术后改变，较前未见明显变化。_x0004_肝S7结节，考虑血管瘤。肝S7肝内胆管结石。_x0004_甲状腺左叶病变，较前未见明显变化。_x0004_直肠癌术后改变。直肠癌术后肺转移、肝转移综合治疗后，对比2017-3-2片：_x0004_左肺下叶见一肿块，大小约59MM×33MM，边界欠清，分叶状，增强扫描不均匀轻度强化，病灶周围见多发条索灶，与邻近胸膜牵拉粘连，较前增大。_x0004_左肺上叶前基底段见一结节，大小约20MM×16MM，边界不清，密度不均匀，增强扫描轻度强化，较前未见明显变化。左肺中叶胸膜上及上叶后基底段各见不规则病灶，大小约7MM×8MM、12MM×11MM，内见空洞影，边缘模糊，周围见条索灶，与邻近胸膜粘连，较前变化不大。右肺下叶前段见一小致密影，直径约3MM，较前未见明显变化。_x0004_两肺见散在多发新增小结节，直径约2-6MM，边界清楚，密度均匀。气管及支气管分支通畅。_x0004_左侧锁骨下窝、两侧下上气管旁、主动脉旁、左肺门见数个淋巴结，大者短径约18MM，强化明显，较前增大、增多。两侧胸腔未见积液，胸膜未见增厚。两侧乳腺术后缺失，两侧腋窝未见肿大淋巴结。甲状腺左叶体积增大，见一稍低密度结节，大小约16MM×13MM，边界清楚，增强扫描较明显强化，大致同前。_x0004_肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝S4、S7各见一斑片状低密度病变，较大者大小约19MM×11MM，边界清晰，增强扫描未见强化，大致同前。肝S7下述病灶前缘见一结节，大小约13MM×9MM，边界清楚，增强扫描动脉期结节样强化，门脉期、延迟期仍明显强化。肝S7另见一颗粒状致密灶。肝内外胆管未见扩张，胆囊不大，内未见异常密度灶。肝门区、门静脉未见异常。脾、胰腺、两肾及两侧肾下腺未见异常。肝门区及腹膜后未见肿大淋巴结。_x0004_直肠癌术后，吻合口区肠壁未见明显增厚，肠周间隙清晰。膀胱充盈良好，境界清楚。_x0004_子宫、宫颈大小、形态未见异常，宫腔内见金属节育环。两侧附件区未见明确肿块。_x0004_两侧腹股沟区及两侧髂血管旁未见肿大淋巴结。_x0004_扫描范围内未见明确骨质破坏。</t>
   </si>
   <si>
     <t>左中肺及上肺,两肺,左侧锁骨下窝,纵隔,左肺门多发淋巴结,肝S4,S7</t>
@@ -5411,7 +5411,7 @@
     <t>右下肺癌术后靶向治疗后，与2012-10-22片对比：右肺上叶2个小斑片状、类结节状病变，较大结节较前稍增大，考虑转移瘤，较小结节较前未见明显变化，考虑增殖灶可能性大。右肺上叶及左肺上叶内基底段条索状病变，考虑纤维增殖灶。左肺下叶后段钙化灶。甲状腺两侧叶低密度病变，考虑结节性甲状腺肿。两肾囊肿。第1腰椎上份及第3腰椎小斑片状高密度病变，考虑退行性病变可能性大。右侧第6后肋考虑术后改变。右下肺癌术后靶向治疗后，与2012-10-22片对比：右肺下叶术后缺失。右肺上叶见2个小斑片状、类结节状病变，大小分别约7MM×9MM及3MM×4MM，边界清晰，边缘欠光整，增强扫描呈轻度强化，与前片对比，较大结节较前稍增大，较小结节较前未见明显变化。右肺上叶及左肺上叶内基底段见条索状病变，边界清晰，左肺下叶后段见钙化灶。气管及余支气管分支通畅。两下上气管旁、隆突上、两肺门见数个小淋巴结，最大者约6MM×10MM，边界清晰，部分淋巴结可见钙化。两侧胸腔未见积液。右侧胸膜稍增厚，左侧胸膜未见增厚。甲状腺两侧叶见数个类圆形低密度病变，最大者约11MM×16MM，边界清晰，增强扫描呈轻度强化。肝脏形态、各叶比例未见异常，其外形轮廓光整，密度均匀，增强扫描未见异常强化灶。肝内外胆管未见异常，其内未见结石影，胆囊未见异常。肝门区未见异常。门静脉未见异常。脾脏、胰腺大小、形态、密度未见异常，增强扫描未见异常强化。两肾见数个囊性灶，最大者约11MM×12MM，边界清晰，增强扫描未见强化。两肾下腺未见异常。腹主动脉旁未见肿大淋巴结。第1腰椎上份及第3腰椎见小斑片状高密度病变，边界欠清。右侧第6后肋骨皮质边缘不光整，见骨痂形成。</t>
   </si>
   <si>
-    <t>1.主动脉瓣钙化2.右房增大伴轻度二尖瓣反流常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，30，20-37，右房内径，49，19-40，右室舒张末内径，52，35-56，右室收缩末内径，32，23-35，室间隔厚度，10，6-11，右室后壁厚度，11，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房增大，右室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻度二尖瓣反流。，3、主动脉不增宽，主动脉瓣钙化，开放不受限，彩色多普勒测及轻微主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻度三度尖瓣反流估测肺动脉收缩压约32MMHg，。，三、右心功能测定：，FS：38%；LVEF：68%；二尖瓣血流图示单峰，四、组织多普勒测定：，DTI示S波峰值：9CM/s，五、结论：，</t>
+    <t>1.主动脉瓣钙化2.右房增大伴轻度二尖瓣反流常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,30,20-37,右房内径,49,19-40,右室舒张末内径,52,35-56,右室收缩末内径,32,23-35,室间隔厚度,10,6-11,右室后壁厚度,11,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房增大，右室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻度二尖瓣反流。,3、主动脉不增宽，主动脉瓣钙化，开放不受限，彩色多普勒测及轻微主动脉瓣反流。,4、左房室不大，肺动脉不增宽，,连续多普勒据轻度三度尖瓣反流估测肺动脉收缩压约32MMHg,。,三、右心功能测定：,FS:38%;LVEF:68%；二尖瓣血流图示单峰,四、组织多普勒测定：,DTI示S波峰值:9CM/s,五、结论：,</t>
   </si>
   <si>
     <t>右上肺癌术后，与2015-9-23对比：右上胸膜增厚。左肺下叶、上叶斑点影，考虑增殖灶可能性大，较前未见明显变化。纵膈及右侧锁骨下淋巴结转移，较前明显缩小。右侧胸腔少量积液。胆囊小结石。肝脏未见明确病灶。右肾小囊肿。右肺癌术后，右肺下叶术后缺失，右肺上叶见少许纤维条索，边界清晰，未见明确结节影；左下肺及上肺见小斑点状影，边界欠清，直径约2MM；气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。右侧锁骨下、血管前、上气管旁见多个肿大淋巴结，部分淋巴结相互融合，最大淋巴结大小约14MM×14MM；右侧胸腔见少量积液，左侧胸腔未见积液。右上胸膜增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀；肝内胆管正常，其内未见结石影，胆囊大小正常，其内见小结石影，胆总管未见扩张，其内未见结石影；肝门区正常；门静脉所见正常；脾大小正常，密度均匀；胰腺大小、形态正常，密度均匀；右肾见一类圆形囊性灶，大小约7MM×4MM，边界清晰，增强扫描未见强化，左肾所见正常；两肾下腺所见正常；膈脚后、腹主动脉旁未见肿大淋巴结。扫描层面中胸椎、腰椎、肋骨未见明确骨质破坏征象。</t>
@@ -5447,28 +5447,28 @@
     <t>右肺动脉,纵隔胸膜,右侧斜裂胸膜,纵隔多发肿大淋巴结,两侧肾下腺</t>
   </si>
   <si>
-    <t>右下肺叶切除术后改变，支气管残端未见软组织影。左肺下叶后段少许斑片灶，较前无明显强化，考虑慢性炎性病变。左肺中叶小斑片灶，较前相仿，考虑增殖性病灶。右侧胸腔少量积液，较前减少，右下胸纵隔旁少量包裹性积液，较前相仿。甲状腺两叶结节，考虑结节性甲状腺肿可能性大。右侧腋上片絮灶，考虑术后改变可能性大。肝S6稍低密度灶，考虑血管瘤，较前相仿。肝内多发囊肿。盆腔未见明显异常。右下肺叶切除术后，对比2017-01-06片：右下肺叶缺如，右下肺支气管截断呈术后改变，支气管残端未见明确软组织影及异常强化灶。右上肺叶膨胀尚可，内见多发纤维条索条片灶。左肺下叶后段见少许斑片灶，边界欠清楚，左肺中叶见小斑片灶，大小约4MM×7MM，形态欠规则，邻近胸膜受牵拉，较前变化不大。气管及余支气管分支通畅。两侧锁骨下区、两肺门及纵隔、两侧腋窝未见明显肿大淋巴结。右侧胸腔见少量游离性积液，较前减少，右下胸腔纵隔旁局部见包裹性积液。左侧胸腔未见积液。右侧胸膜轻度增厚、粘连。心包未见积液。扫描范围内甲状腺两叶见多个类结节灶，大者直径约11MM，边界清楚，不均匀强化。右侧腋上皮上脂肪间隙见片絮状密度增高影，边缘模糊，内见斑点状致密灶，右侧前锯肌肿胀，边界模糊，与病变分界不清。肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，肝S4、6几个低密度灶，大者约33MM×26MM，内无强化；肝S6见一小低密度灶，直径约7MM，增强扫描动脉期强化不明显，门脉期及延迟期未见明显减退。肝内胆管未见扩张，胆囊不大，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾及两肾下腺大小、形态未见异常，密度均匀。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。子宫大小、形态未见明显异常，子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。两侧髂血管旁、腹股沟未见肿大淋巴结。扫描范围骨质未见明显异常。</t>
-  </si>
-  <si>
-    <t>右肺癌化疗后复查：右上肺门区肿物及其后方数个小结节，较前未见明显变化。右肺下叶前段类结节，大致同前。右肺下叶舌段条索状密度增高影，考虑纤维灶，较前变化不大。两锁下、纵隔及两肺门多发淋巴结，较前无明显变化。右侧胸膜多发转移瘤，较前无明显变化；右侧胸腔少量积液。肝囊肿。肝S5肝内胆管结石。右肺癌化疗后，与2016-12-13片对比：右上肺门区见一团块状肿物，大小约43MM×36MM，密度不均匀，增强扫描见不均匀强化，病变内缘紧贴纵隔胸膜，包绕右上肺基底段支气管开口段，管腔稍狭窄，较前未见明显变化。病灶后方肺内见数个小结节，大者约6MM×5MM，边界清，较前未见明显变化。右肺下叶前段见数个类结节，较大直径约5MM，大致同前。右肺下叶舌段见条索状密度增高影，边界模糊。左肺内未见明确病灶。两锁骨下窝、左下气管旁、血管前间隙、两上气管旁、主-肺动脉窗、主动脉旁、隆突上及两肺门见多个肿大淋巴结，最大者约9MM×14MM，较前无明显变化。两侧肺动脉内未见充盈缺损。右侧胸膜广泛增厚，散在大量结节、团块状病灶，最大者约24MM×52MM，增强扫描强化明显，较前未见明显变化。右侧胸腔见少量积液，较前相仿。左侧胸腔未见积液；左侧胸膜无增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀。肝S3、4、5、6、8见数个圆形低密度灶，最大约12MM×12MM，边界清楚，增强扫描未见强化，较前相仿。肝S5见斑点致密灶，直径约6MM。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾及两肾下腺未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。扫描所见骨质未见明确破坏征象。</t>
-  </si>
-  <si>
-    <t>右颈根部多发淋巴结，观察肝弥漫性病变伴多发结节，建议结合增强影像学检查肝多发囊肿右肾多发囊肿左肾强回声结节，观察右颈根部可见多发低回声及偏心靶环状淋巴结，最大1.1CM×0.6CM。左颈部、左锁骨下未见异常肿大淋巴结。两侧颈内静脉管壁平整，管腔内清晰，未见明显栓子，CDFI：血流充盈良好。肝形态、大小尚可，表面尚光滑，实质回声弥漫增粗、不均，肝内可见多发无回声结节，最大位于右外叶，2.8CM×1.8CM，伴分隔。肝内另可见多发偏强回声结节，最大1.8CM×1.7CM，边界尚清。胆系不扩张。右肾可见多发无回声结节，最大1.2CM。左肾可见强回声结节，0.9CM×0.9CM。胰腺、两肾下腺区未见明显占位。脾不大。腹主动脉周围未见明显肿大淋巴结。</t>
+    <t>右下肺叶切除术后改变，支气管残端未见软组织影。_x0004_左肺下叶后段少许斑片灶，较前无明显强化，考虑慢性炎性病变。_x0004_左肺中叶小斑片灶，较前相仿，考虑增殖性病灶。_x0004_右侧胸腔少量积液，较前减少，右下胸纵隔旁少量包裹性积液，较前相仿。_x0004_甲状腺两叶结节，考虑结节性甲状腺肿可能性大。_x0004_右侧腋上片絮灶，考虑术后改变可能性大。_x0004_肝S6稍低密度灶，考虑血管瘤，较前相仿。肝内多发囊肿。_x0004_盆腔未见明显异常。_x0004_右下肺叶切除术后，对比2017-01-06片：_x0004_右下肺叶缺如，右下肺支气管截断呈术后改变，支气管残端未见明确软组织影及异常强化灶。右上肺叶膨胀尚可，内见多发纤维条索条片灶。_x0004_左肺下叶后段见少许斑片灶，边界欠清楚，左肺中叶见小斑片灶，大小约4MM×7MM，形态欠规则，邻近胸膜受牵拉，较前变化不大。_x0004_气管及余支气管分支通畅。两侧锁骨下区、两肺门及纵隔、两侧腋窝未见明显肿大淋巴结。右侧胸腔见少量游离性积液，较前减少，右下胸腔纵隔旁局部见包裹性积液。左侧胸腔未见积液。右侧胸膜轻度增厚、粘连。心包未见积液。_x0004_扫描范围内甲状腺两叶见多个类结节灶，大者直径约11MM，边界清楚，不均匀强化。_x0004_右侧腋上皮上脂肪间隙见片絮状密度增高影，边缘模糊，内见斑点状致密灶，右侧前锯肌肿胀，边界模糊，与病变分界不清。_x0004_肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，肝S4、6几个低密度灶，大者约33MM×26MM，内无强化；肝S6见一小低密度灶，直径约7MM，增强扫描动脉期强化不明显，门脉期及延迟期未见明显减退。肝内胆管未见扩张，胆囊不大，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾及两肾下腺大小、形态未见异常，密度均匀。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_膀胱充盈良好，境界清楚。子宫大小、形态未见明显异常，子宫颈大小、形态未见异常。盆腔未见软组织肿块影。直肠未见明显异常。两侧髂血管旁、腹股沟未见肿大淋巴结。_x0004_扫描范围骨质未见明显异常。</t>
+  </si>
+  <si>
+    <t>右肺癌化疗后复查：_x0004_右上肺门区肿物及其后方数个小结节，较前未见明显变化。_x0004_右肺下叶前段类结节，大致同前。右肺下叶舌段条索状密度增高影，考虑纤维灶，较前变化不大。_x0004_两锁下、纵隔及两肺门多发淋巴结，较前无明显变化。_x0004_右侧胸膜多发转移瘤，较前无明显变化；右侧胸腔少量积液。_x0004_肝囊肿。_x0004_肝S5肝内胆管结石。右肺癌化疗后，与2016-12-13片对比：_x0004_右上肺门区见一团块状肿物，大小约43MM×36MM，密度不均匀，增强扫描见不均匀强化，病变内缘紧贴纵隔胸膜，包绕右上肺基底段支气管开口段，管腔稍狭窄，较前未见明显变化。病灶后方肺内见数个小结节，大者约6MM×5MM，边界清，较前未见明显变化。右肺下叶前段见数个类结节，较大直径约5MM，大致同前。右肺下叶舌段见条索状密度增高影，边界模糊。左肺内未见明确病灶。_x0004_两锁骨下窝、左下气管旁、血管前间隙、两上气管旁、主-肺动脉窗、主动脉旁、隆突上及两肺门见多个肿大淋巴结，最大者约9MM×14MM，较前无明显变化。两侧肺动脉内未见充盈缺损。_x0004_右侧胸膜广泛增厚，散在大量结节、团块状病灶，最大者约24MM×52MM，增强扫描强化明显，较前未见明显变化。右侧胸腔见少量积液，较前相仿。左侧胸腔未见积液；左侧胸膜无增厚。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀。肝S3、4、5、6、8见数个圆形低密度灶，最大约12MM×12MM，边界清楚，增强扫描未见强化，较前相仿。肝S5见斑点致密灶，直径约6MM。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉未见异常。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾及两肾下腺未见异常。_x0004_膈脚后、腹主动脉旁未见肿大淋巴结。_x0004_扫描所见骨质未见明确破坏征象。</t>
+  </si>
+  <si>
+    <t>右颈根部多发淋巴结，观察肝弥漫性病变伴多发结节，建议结合增强影像学检查肝多发囊肿右肾多发囊肿左肾强回声结节，观察右颈根部可见多发低回声及偏心靶环状淋巴结，最大1.1CM×0.6CM。左颈部、左锁骨下未见异常肿大淋巴结。两侧颈内静脉管壁平整，管腔内清晰，未见明显栓子，CDFI:血流充盈良好。肝形态、大小尚可，表面尚光滑，实质回声弥漫增粗、不均，肝内可见多发无回声结节，最大位于右外叶，2.8CM×1.8CM，伴分隔。肝内另可见多发偏强回声结节，最大1.8CM×1.7CM，边界尚清。胆系不扩张。右肾可见多发无回声结节，最大1.2CM。左肾可见强回声结节，0.9CM×0.9CM。胰腺、两肾下腺区未见明显占位。脾不大。腹主动脉周围未见明显肿大淋巴结。</t>
   </si>
   <si>
     <t>左上肺癌术后化疗后，与2014-11-13日片对比：左上肺癌术后改变，未见明确复发征。左残肺条片状软组织影，大致同前，考虑慢性炎症可能性大。左肺中叶增殖灶，大致同前。左侧胸膜轻度增厚，左侧胸腔少量积液较前减少。肝内多发囊肿。右肾小囊肿。左上肺癌术后化疗后，与2014-11-13日片对比：左肺上叶术后缺失，左肺上叶支气管残端见线样致密影，未见明确软组织肿块。左残肺脊柱旁见条片状软组织影，较前变化不大。左肺中叶边缘见少许斑片灶、条索病灶，与胸膜粘连。余肺未见实质性病变。纵隔稍向左偏移，两肺门及纵隔未见明显肿大淋巴结。左侧胸腔少量积液，较前减少。左侧胸膜轻度增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝内见多发类圆形低密灶，边界清，最大者直径约13MM，边界清，增强扫描未见强化，大致同前。胆囊大小正常，其内未见结石，肝内胆管、胆总管未见扩张，其内未见结石。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见小低密灶，边界清，短径约3MM，增强扫描未见强化，大致同前；左肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见明显肿大淋巴结。左侧第4、5前肋局部骨皮质稍扭曲，但连续性存在，大致同前。</t>
   </si>
   <si>
-    <t>左肺癌治疗后，左肺下叶前段、左肺门病变，较前缩小。左肺多发散在片状、斑片状病变，考虑炎症，较前吸收、减少。两肺多发肺大泡，两肺散在纤维增殖灶。纵隔淋巴结大致同前；左肺门淋巴结，较前缩小。左侧胸腔积液及心包积液较前明显减少。肝多发囊肿。两肾囊肿。增强动脉期肝S6斑片状明显强化灶，考虑异常灌注可能性大，血管瘤待排。T10椎体右后缘稍致密，较前相仿。盆腔未见明显异常。左肺癌治疗后，与2017.01.17片对比：左肺下叶前段见一不规则形密度增高影，密度不均匀，边界欠清，范围约23MM×29MM(肺窗显示)，与左侧水平裂胸膜关系密切，增强扫描不均匀强化，较前缩小。左肺门见片状软组织密度灶包绕，边界不清，部分与左肺下叶前段病变相连，范围约26MM×20MM，增强扫描不均匀轻度强化，较前缩小。左肺另见多发散在片状、斑片状密度增高影，边界模糊，较前减少。两肺见多发大小不等薄壁无肺纹理区及散在条索灶，以左肺下叶为著，较前相仿。两上气管旁、主肺动脉窗、隆突上、左肺门可见多个淋巴结，部分融合，大者位于左肺门，短径约11MM，边界不清楚，密度欠均匀，增强扫描不均匀轻度强化，左肺门淋巴结较前稍缩小，纵隔淋巴结较前相仿。两侧锁骨下窝小淋巴结，大者短径约6MM，较前相仿。左侧胸腔见少量积液，较前明显减少，右侧胸腔未见积液。左侧胸膜增厚、粘连。心包积液较前明显减少。肝脏形态正常，各叶比例在正常范围以内，平扫肝实质内不均匀减低，低于正常脾脏密度；肝S1、2、3、4、5、6见多个类圆形低密度灶，界清，最大者约26MM×20MM，增强扫描未见强化，大致同前；动脉期肝S6见斑片状明显强化灶，门脉期及平衡期呈稍高密度改变。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾见多个类圆形低密度灶，界清，大者约21MM×20MM，增强扫描未见强化。两肾下腺未见明显异常。膈脚后未见肿大淋巴结。腹膜后未见明显肿大淋巴结。膀胱充盈良好，境界清楚。精囊大小、形态未见异常，密度均匀，膀胱精囊角存在。前列腺大小、形态未见异常，密度均匀。直肠未见明显异常。两侧髂血管旁、腹股沟未见肿大淋巴结。T10椎体右后缘见片状致密灶，边界欠清晰，较前相仿。</t>
-  </si>
-  <si>
-    <t>None与2015-09-18片比较：肝脏多发转移结节较前增大，现较大约29MM(66图)，原约24MM(IM19)，边界模糊；肝内血管及胆管未见异常。脾脏多发低强化结节较前缩小，现较大约11MM×7MM(图71)，原约17MM（IMA19）。胆囊、胰腺、两肾实质及两侧肾下腺未见异常。大网膜不均匀增厚局部呈结节状改变、腹腔内多发环形强化结节较前增多增大，较大约34MM×24MM(图89），腹腔新见大量腹水，考虑腹膜转移。腹腔及腹膜后多发肿大淋巴结，原较大淋巴结缩小，部分淋巴结较前增大，现较大约28MM×16MM(图87)，原约21MM×12MM（IM38）。扫描所及肺上叶多发实性密度结节较前缩小。</t>
+    <t>左肺癌治疗后，左肺下叶前段、左肺门病变，较前缩小。_x0004_左肺多发散在片状、斑片状病变，考虑炎症，较前吸收、减少。_x0004_两肺多发肺大泡，两肺散在纤维增殖灶。_x0004_纵隔淋巴结大致同前；左肺门淋巴结，较前缩小。_x0004_左侧胸腔积液及心包积液较前明显减少。_x0004_肝多发囊肿。两肾囊肿。_x0004_增强动脉期肝S6斑片状明显强化灶，考虑异常灌注可能性大，血管瘤待排。_x0004_T10椎体右后缘稍致密，较前相仿。盆腔未见明显异常。左肺癌治疗后，与2017.01.17片对比：_x0004_左肺下叶前段见一不规则形密度增高影，密度不均匀，边界欠清，范围约23MM×29MM(肺窗显示)，与左侧水平裂胸膜关系密切，增强扫描不均匀强化，较前缩小。左肺门见片状软组织密度灶包绕，边界不清，部分与左肺下叶前段病变相连，范围约26MM×20MM，增强扫描不均匀轻度强化，较前缩小。左肺另见多发散在片状、斑片状密度增高影，边界模糊，较前减少。两肺见多发大小不等薄壁无肺纹理区及散在条索灶，以左肺下叶为著，较前相仿。_x0004_两上气管旁、主肺动脉窗、隆突上、左肺门可见多个淋巴结，部分融合，大者位于左肺门，短径约11MM，边界不清楚，密度欠均匀，增强扫描不均匀轻度强化，左肺门淋巴结较前稍缩小，纵隔淋巴结较前相仿。两侧锁骨下窝小淋巴结，大者短径约6MM，较前相仿。_x0004_左侧胸腔见少量积液，较前明显减少，右侧胸腔未见积液。左侧胸膜增厚、粘连。心包积液较前明显减少。_x0004_肝脏形态正常，各叶比例在正常范围以内，平扫肝实质内不均匀减低，低于正常脾脏密度；肝S1、2、3、4、5、6见多个类圆形低密度灶，界清，最大者约26MM×20MM，增强扫描未见强化，大致同前；动脉期肝S6见斑片状明显强化灶，门脉期及平衡期呈稍高密度改变。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾见多个类圆形低密度灶，界清，大者约21MM×20MM，增强扫描未见强化。两肾下腺未见明显异常。膈脚后未见肿大淋巴结。腹膜后未见明显肿大淋巴结。_x0004_膀胱充盈良好，境界清楚。精囊大小、形态未见异常，密度均匀，膀胱精囊角存在。前列腺大小、形态未见异常，密度均匀。直肠未见明显异常。两侧髂血管旁、腹股沟未见肿大淋巴结。_x0004_T10椎体右后缘见片状致密灶，边界欠清晰，较前相仿。</t>
+  </si>
+  <si>
+    <t>None与2015-09-18片比较:肝脏多发转移结节较前增大，现较大约29MM(66图)，原约24MM(IM19)，边界模糊；肝内血管及胆管未见异常。脾脏多发低强化结节较前缩小，现较大约11MM×7MM(图71)，原约17MM（IMA19）。胆囊、胰腺、两肾实质及两侧肾下腺未见异常。大网膜不均匀增厚局部呈结节状改变、腹腔内多发环形强化结节较前增多增大，较大约34MM×24MM(图89），腹腔新见大量腹水，考虑腹膜转移。腹腔及腹膜后多发肿大淋巴结，原较大淋巴结缩小，部分淋巴结较前增大，现较大约28MM×16MM(图87)，原约21MM×12MM（IM38）。扫描所及肺上叶多发实性密度结节较前缩小。</t>
   </si>
   <si>
     <t>肝脏,腹膜</t>
   </si>
   <si>
-    <t>右肺小细胞肺癌化疗后复查，与2017-05-24MMR片相比：右下肺尖后段肿块，较前缩小；病灶周围斑片及索条灶，考虑炎症，较前稍减少。两上肺少许纤维增殖灶。纵隔、右肺门多发淋巴结，考虑转移，均较前缩小。脑多发缺血灶。筛窦轻度炎症。右肺小细胞肺癌化疗后复查：右下肺尖后段见分叶状软组织肿块，大小约45MM×38MM，可见毛刺，牵拉邻近胸膜，信号不均匀，T1WI呈等信号，T2WI、DWI呈稍高信号，增强扫描不均匀明显强化，内见片状不强化坏死区。病灶周围见斑片及索条状T2WI稍高信号、T1WI呈等或稍低信号，增强扫描轻度强化。病灶侵犯右侧纵隔胸膜，右肺下叶尖后段支气管闭塞。两上肺见小条索灶，T2WI稍高信号、T1WI稍低信号灶，增强扫描部分病灶轻度强化。气管、余支气管及分支管通畅。左下气管旁、右上气管旁、主动脉旁、主肺动脉窗、隆突上及右肺门见多发淋巴结，T2WI呈稍高信号，T1WI呈等信号，增强扫描不均匀环状强化，大者短径约13MM。两侧胸腔未见积液。余两侧胸膜无增厚、粘连。心包未见积液。两侧大脑白质内见多个斑点状异常信号影，T1WI呈等或稍低信号，T2WI呈高信号，T2FLAIR高信号，增强后未见强化。小脑及脑干形态正常，信号均匀，增强后亦未见异常信号区。各脑室及脑池大小、形态未见异常。大脑中线结构未见移位，未见占位性病变。两眼球后未见占位性病变。扫描范围内所见两侧筛窦粘膜轻度增厚，骨壁完整。扫描范围未见明显骨质破坏征象。</t>
+    <t>右肺小细胞肺癌化疗后复查，与2017-05-24MMR片相比：_x0004_右下肺尖后段肿块，较前缩小；病灶周围斑片及索条灶，考虑炎症，较前稍减少。_x0004_两上肺少许纤维增殖灶。_x0004_纵隔、右肺门多发淋巴结，考虑转移，均较前缩小。_x0004_脑多发缺血灶。_x0004_筛窦轻度炎症。_x0004_右肺小细胞肺癌化疗后复查：_x0004_右下肺尖后段见分叶状软组织肿块，大小约45MM×38MM，可见毛刺，牵拉邻近胸膜，信号不均匀，T1WI呈等信号，T2WI、DWI呈稍高信号，增强扫描不均匀明显强化，内见片状不强化坏死区。病灶周围见斑片及索条状T2WI稍高信号、T1WI呈等或稍低信号，增强扫描轻度强化。病灶侵犯右侧纵隔胸膜，右肺下叶尖后段支气管闭塞。两上肺见小条索灶，T2WI稍高信号、T1WI稍低信号灶，增强扫描部分病灶轻度强化。_x0004_气管、余支气管及分支管通畅。_x0004_左下气管旁、右上气管旁、主动脉旁、主肺动脉窗、隆突上及右肺门见多发淋巴结，T2WI呈稍高信号，T1WI呈等信号，增强扫描不均匀环状强化，大者短径约13MM。_x0004_两侧胸腔未见积液。余两侧胸膜无增厚、粘连。心包未见积液。_x0004_两侧大脑白质内见多个斑点状异常信号影，T1WI呈等或稍低信号，T2WI呈高信号，T2FLAIR高信号，增强后未见强化。小脑及脑干形态正常，信号均匀，增强后亦未见异常信号区。各脑室及脑池大小、形态未见异常。大脑中线结构未见移位，未见占位性病变。_x0004_两眼球后未见占位性病变。_x0004_扫描范围内所见两侧筛窦粘膜轻度增厚，骨壁完整。_x0004_扫描范围未见明显骨质破坏征象。</t>
   </si>
   <si>
     <t>45MM×38MM</t>
@@ -5477,7 +5477,7 @@
     <t>左中上肺叶切除术后，左肺少量纤维增殖灶。右侧锁下、左肺门多个淋巴结，较前缩小。左侧少量胸腔积液，较前吸收。肝脏未见明显异常。两肾囊肿。左肾下腺内肢、右肾下腺结合部增粗，大致同前，建议随诊。左中上肺叶切除术后：左侧胸廓稍塌陷，左肺体积缩小，残余左肺内见少量条索灶，边界欠清，与邻近胸膜粘连。右肺纹理清晰，未见明显占位性病变。气管及余支气管分支通畅。右侧锁下、左肺门见多个淋巴结，最大者约10MM×11MM，边界尚清，中等强化，较前稍缩小。左侧胸腔见少量积液，较前吸收，左侧胸膜均匀增厚。右侧胸腔未见积液，胸膜未见增厚。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，密度均匀。肝内胆管、胆总管未见扩张，其内未见结石，胆囊大小正常，其内未见结石。肝门区未见异常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾见囊性灶，直径约10MM内，边界清楚，未见强化。左肾下腺内肢、右肾下腺结合部增粗，密度尚均匀。右肾未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见明显肿大淋巴结。左侧第6后肋骨皮质不连续，呈术后改变。</t>
   </si>
   <si>
-    <t>左中下肺团片状软组织影代谢活跃，考虑恶性病变（左肺癌可能性大），病灶侵犯左水平裂，累及左斜裂及左肋胸膜；左肺门淋巴结代谢略活跃，疑转移。纵隔数个小淋巴结部分代谢略活跃，疑炎性病变，请结合临床。左下颌窦炎症。两颈II区淋巴结代谢略活跃，考虑炎性改变。两肾结石。子宫多发肌瘤。右附件区囊性低密度影代谢较活跃，考虑生理性摄取。空腹6h以下，静脉注射18F-FDG，静息约60MMin后行全身PET/CT断层显像，影像清晰。左中下肺团片状软组织影放射性浓密，SUV约15.8，大者约4.8CM×6.2CM，病灶边缘分叶，局部牵拉左侧肋胸膜，增强扫描呈轻中度不均匀强化，病灶侵犯左水平裂胸膜，局部与左斜裂及左肋胸膜分界不清；余两侧肺纹理未见明显异常，气管、支气管通畅。心脏各壁及纵隔大血管未见明显异常。两侧乳腺及两侧胸壁未见确切病灶和异常放射性分布。左肺门淋巴结放射性分布略浓密，SUV约2.9，大者约0.8CM×0.9CM；纵隔血管前、左下上气管旁及主动脉上数个小淋巴结部分放射性分布略浓密。右肺门及两侧腋窝未见肿大淋巴结及异常放射性分布。所见两侧脑实质密度、形态正常，放射性分布均匀、对称，诸脑室、脑池、脑沟、脑裂未见异常，中线结构居中。鼻咽、口咽及喉咽结构及放射性分布未见明显异常。左侧下颌窦低密度影放射性分布未见异常，额窦、蝶窦、筛窦及右侧下颌窦结构及放射性分布未见明显异常。甲状腺放射性分布未见异常。两颈II区数个淋巴结放射性分布略浓密，大者约0.9CM×1.0CM；余两颈多个小淋巴结放射性分布未见异常。肝脏形态、结构及放射性分布未见明显异常。肝门结构及放射性分布未见明显异常。肝内、外胆管未见扩张。胆囊、胃及十二指肠放射性分布未见明显异常。两侧肾盂点状高密度影放射性缺损，CT值约447Hu；脾周结节密度及放射性与脾脏相仿，大小约0.9CM×1.1CM（副脾）。胰腺及两肾下腺形态、结构及放射性分布未见异常。腹腔及腹膜后未见肿大淋巴结及异常放射性分布。子宫稍大呈波浪状，可见数个结节突出于宫体轮廓，放射性未见异常；右侧附件区囊性低密度影放射性较浓密，SUV约6.2；膀胱及肠管等形态、结构及放射性分布未见明显异常。两髂血管旁及两侧腹股沟未见肿大淋巴结及异常放射性分布。所见颅骨、躯干骨、四肢骨放射性分布未见明显异常。</t>
+    <t>左中下肺团片状软组织影代谢活跃，考虑恶性病变（左肺癌可能性大），病灶侵犯左水平裂，累及左斜裂及左肋胸膜；左肺门淋巴结代谢略活跃，疑转移。_x0004_纵隔数个小淋巴结部分代谢略活跃，疑炎性病变，请结合临床。_x0004_左下颌窦炎症。_x0004_两颈II区淋巴结代谢略活跃，考虑炎性改变。_x0004_两肾结石。_x0004_子宫多发肌瘤。_x0004_右附件区囊性低密度影代谢较活跃，考虑生理性摄取。空腹6h以下，静脉注射18F-FDG，静息约60MMin后行全身PET/CT断层显像，影像清晰。_x0004_左中下肺团片状软组织影放射性浓密，SUV约15.8，大者约4.8CM×6.2CM，病灶边缘分叶，局部牵拉左侧肋胸膜，增强扫描呈轻中度不均匀强化，病灶侵犯左水平裂胸膜，局部与左斜裂及左肋胸膜分界不清；余两侧肺纹理未见明显异常，气管、支气管通畅。心脏各壁及纵隔大血管未见明显异常。两侧乳腺及两侧胸壁未见确切病灶和异常放射性分布。左肺门淋巴结放射性分布略浓密，SUV约2.9，大者约0.8CM×0.9CM；纵隔血管前、左下上气管旁及主动脉上数个小淋巴结部分放射性分布略浓密。右肺门及两侧腋窝未见肿大淋巴结及异常放射性分布。_x0004_所见两侧脑实质密度、形态正常，放射性分布均匀、对称，诸脑室、脑池、脑沟、脑裂未见异常，中线结构居中。鼻咽、口咽及喉咽结构及放射性分布未见明显异常。左侧下颌窦低密度影放射性分布未见异常，额窦、蝶窦、筛窦及右侧下颌窦结构及放射性分布未见明显异常。甲状腺放射性分布未见异常。两颈II区数个淋巴结放射性分布略浓密，大者约0.9CM×1.0CM；余两颈多个小淋巴结放射性分布未见异常。_x0004_肝脏形态、结构及放射性分布未见明显异常。肝门结构及放射性分布未见明显异常。肝内、外胆管未见扩张。胆囊、胃及十二指肠放射性分布未见明显异常。两侧肾盂点状高密度影放射性缺损，CT值约447Hu；脾周结节密度及放射性与脾脏相仿，大小约0.9CM×1.1CM（副脾）。胰腺及两肾下腺形态、结构及放射性分布未见异常。腹腔及腹膜后未见肿大淋巴结及异常放射性分布。_x0004_子宫稍大呈波浪状，可见数个结节突出于宫体轮廓，放射性未见异常；右侧附件区囊性低密度影放射性较浓密，SUV约6.2；膀胱及肠管等形态、结构及放射性分布未见明显异常。两髂血管旁及两侧腹股沟未见肿大淋巴结及异常放射性分布。_x0004_所见颅骨、躯干骨、四肢骨放射性分布未见明显异常。_x0004_</t>
   </si>
   <si>
     <t>左中下肺</t>
@@ -5486,7 +5486,7 @@
     <t>4.8CM×6.2CM</t>
   </si>
   <si>
-    <t>右乳癌术后化疗后，肝右左叶交界处病灶及左肾下腺结节，肝左后叶小病灶，较前片12-12-29相仿；两肾小囊肿。双侧少量胸水。肝右左叶交界处见不规则异常信号灶，大小约26.2MM×32.8MM，T1WI为低信号，T2WI为等略高信号，动脉期异常不均匀强化，门脉期呈边缘持续强化，邻近肝内胆管轻度扩张，病灶与胆囊分界不清，另见肝左后叶一小点状T2高T1低持续强化灶，大小约6MM，肝内血管尚可。脾脏饱满，信号尚均。胰腺无殊。两肾见小囊性灶。左肾下腺见一结节异常信号灶，大小约7.5MM×12.4MM，不均匀强化。后腹膜未见肿大淋巴結，腹腔未见明确积液。双侧胸腔见少量弧形液性信号灶。</t>
+    <t>右乳癌术后化疗后，肝右左叶交界处病灶及左肾下腺结节，肝左后叶小病灶，较前片12-12-29相仿；_x0004_两肾小囊肿。双侧少量胸水。肝右左叶交界处见不规则异常信号灶，大小约26.2MM×32.8MM，T1WI为低信号，T2WI为等略高信号，动脉期异常不均匀强化，门脉期呈边缘持续强化，邻近肝内胆管轻度扩张，病灶与胆囊分界不清，另见肝左后叶一小点状T2高T1低持续强化灶，大小约6MM，肝内血管尚可。脾脏饱满，信号尚均。胰腺无殊。两肾见小囊性灶。左肾下腺见一结节异常信号灶，大小约7.5MM×12.4MM，不均匀强化。后腹膜未见肿大淋巴結，腹腔未见明确积液。双侧胸腔见少量弧形液性信号灶。</t>
   </si>
   <si>
     <t>左肺癌术后化疗后复查，与2016-12-20日CT片比较：左肺呈术后改变。纵隔及左肺门小淋巴结，建议随诊复查。左侧第6后肋及周围胸膜软组织稍肿胀，术后改变可能，建议随诊复查肝S4稍低密度灶，较前未见明显变化，建议随诊复查或MR进一步检查。两肾盂小结石，右肾盂旁囊肿，较前相仿。左肺癌术后化疗后复查，与2016-12-20日CT片比较：左肺下叶术后缺失，支气管残端见致密吻合器影，现局部未见明确结节及肿物。左残肺充气良好，左肺中叶、左肺上叶及右肺下叶尖后段见少许条索高密度灶。右肺上叶外侧基底段见一小结节高密度灶，短径约2MM。气管及余支气管分支通畅。左侧肺门及左下上气管旁见多个小淋巴结，边界清，最大短径约11MM，均匀强化。右肺门未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜无增厚、粘连。左侧第6后肋骨质结构不连续，周围软组织稍肿胀，轻度均匀强化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S4见一稍低密度病灶，大小约为7MM×11MM，边界不清，增强后强化不明显，较前未见明显变化。余肝实质未见明显异常密度灶，增强扫描未见异常强化影。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾盂各见一斑点状致密影，右肾盂旁见一囊性灶，大小约为13MM×14MM，边界清楚，增强后未见强化，右侧肾盂稍受压，较前相仿。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。余所见骨质未见明显破坏征象。</t>
@@ -5501,10 +5501,10 @@
     <t>右肝实质,肝门,肝门胆管,门脉右支,结肠肝曲,左腹壁</t>
   </si>
   <si>
-    <t>左上肺癌术后化疗后，对比2017-3-15片：左上肺术后改变，较前变化不明显。左肺下叶少许纤维增殖灶，较前相仿。左肺下叶后段类结节（SE7-IM22），约3MM×3MM，较前变化不明显，考虑增殖灶可能性大，建议复查。右下肺类结节（SE7-IM20），大小约7MM×3MM，较前变化不明显，考虑增殖钙化灶，建议复查。肝内数个小囊性灶，较大者直径约7MM，较前变化不明显，考虑囊肿可能性大。两肾见数个小囊性灶，较大者直径约5MM，考虑囊肿可能性大，建议复查。胃右血管旁见1个小淋巴结，短径约5MM，考虑良性可能性大，建议观察。左上肺癌术后化疗后，对比2017-3-15片：左上肺术后改变，较前变化不明显。左肺下叶少许纤维增殖灶，较前相仿。左肺下叶后段类结节（SE7-IM22），约3MM×3MM，较前变化不明显，考虑增殖灶可能性大，建议复查。右下肺类结节（SE7-IM20），大小约7MM×3MM，较前变化不明显，考虑增殖钙化灶，建议复查。肝内数个小囊性灶，较大者直径约7MM，较前变化不明显，考虑囊肿可能性大。两肾数个小囊性灶，较大者直径约5MM，考虑囊肿可能性大，建议复查。胃右血管旁小淋巴结，短径约5MM，考虑良性可能性大，建议观察。</t>
-  </si>
-  <si>
-    <t>左下肺结节代谢活跃，疑恶性病变；左锁下、纵隔及左肺门多发肿大淋巴结代谢活跃，考虑转移。食管胸上段至胃贲门部病灶代谢活跃，考虑恶性病变。余两下肺斑片及条片影代谢未见异常，疑炎性病变；两下肺肺气肿伴肺大泡；左下肺钙化灶。左下颌窦炎症。右肾囊肿。脾脏低密度影代谢未见异常，考虑良性病变。前列腺钙化灶。空腹6h以下，静脉注射18F-FDG，静息60MMin后行全身PET/CT断层显像，影像清晰。左下肺尖段不规则软组织密度结节放射性浓聚，SUV约8.6，大小约1.4CM×2.3CM，边缘可见胸膜牵拉征；余两下肺斑片及条片影放射性分布未见异常；左下肺可见小结节状钙化灶放射性分布缺损；余两下肺肺纹理稀疏伴多发无肺纹理透亮区放射性分布稀疏；余两侧肺野未见确切病灶和异常放射性分布。气管、支气管通畅。心脏及大血管放射性分布未见异常。食管胸上段至胃贲门部粘膜明显增厚放射性浓聚，SUV约9.2。胸壁未见确切病灶和异常放射性分布。左锁下、纵隔左下上气管旁、血管前、主动脉上及左肺门多发肿大淋巴结放射性浓聚，SUV约8.9，最大约2.6CM×3.1CM；右肺门及两侧腋窝未见明显肿大淋巴结及异常放射性分布。两侧脑实质密度、形态正常，放射性分布均匀、对称。诸脑室、脑池、脑沟、脑裂未见异常，中线结构居中。鼻咽、口咽、喉咽未见异常。右下颌窦稍低密度影放射性分布未见异常；额窦、蝶窦、筛窦及左侧下颌窦结构及放射性分布未见明显异常。甲状腺放射性分布未见异常。余颈部小淋巴结放射性分布未见异常。肝脏形态、结构及放射性分布未见明显异常。肝门结构及放射性分布未见明显异常。肝内、外胆管及胆总管未见扩张。胆囊及十二指肠放射性分布未见异常。脾脏上极局部小片状低密度影放射性分布，直径约0.6CM。右肾囊性低密度影放射性分布稀疏，直径约1.6CM；左肾、胰腺、两侧肾下腺形态、结构及放射性分布未见异常。腹腔及腹膜后未见肿大淋巴结及异常放射性分布。膀胱、肠管等形态、结构及放射性分布未见明显异常。前列腺点状高密度影放射性分布未见异常。两侧髂血管旁及腹股沟未见明显肿大淋巴结及异常放射性分布。所见颅骨、各躯干骨、四肢骨放射性分布未见明显异常。</t>
+    <t>左上肺癌术后化疗后，对比2017-3-15片：_x0004_左上肺术后改变，较前变化不明显。左肺下叶少许纤维增殖灶，较前相仿。_x0004_左肺下叶后段类结节（SE7-IM22），约3MM×3MM，较前变化不明显，考虑增殖灶可能性大，建议复查。_x0004_右下肺类结节（SE7-IM20），大小约7MM×3MM，较前变化不明显，考虑增殖钙化灶，建议复查。_x0004_肝内数个小囊性灶，较大者直径约7MM，较前变化不明显，考虑囊肿可能性大。_x0004_两肾见数个小囊性灶，较大者直径约5MM，考虑囊肿可能性大，建议复查。胃右血管旁见1个小淋巴结，短径约5MM，考虑良性可能性大，建议观察。左上肺癌术后化疗后，对比2017-3-15片：_x0004_左上肺术后改变，较前变化不明显。_x0004_左肺下叶少许纤维增殖灶，较前相仿。_x0004_左肺下叶后段类结节（SE7-IM22），约3MM×3MM，较前变化不明显，考虑增殖灶可能性大，建议复查。_x0004_右下肺类结节（SE7-IM20），大小约7MM×3MM，较前变化不明显，考虑增殖钙化灶，建议复查。_x0004_肝内数个小囊性灶，较大者直径约7MM，较前变化不明显，考虑囊肿可能性大。_x0004_两肾数个小囊性灶，较大者直径约5MM，考虑囊肿可能性大，建议复查。_x0004_胃右血管旁小淋巴结，短径约5MM，考虑良性可能性大，建议观察。</t>
+  </si>
+  <si>
+    <t>左下肺结节代谢活跃，疑恶性病变；左锁下、纵隔及左肺门多发肿大淋巴结代谢活跃，考虑转移。_x0004_食管胸上段至胃贲门部病灶代谢活跃，考虑恶性病变。_x0004_余两下肺斑片及条片影代谢未见异常，疑炎性病变；两下肺肺气肿伴肺大泡；左下肺钙化灶。_x0004_左下颌窦炎症。_x0004_右肾囊肿。_x0004_脾脏低密度影代谢未见异常，考虑良性病变。_x0004_前列腺钙化灶。空腹6h以下，静脉注射18F-FDG，静息60MMin后行全身PET/CT断层显像，影像清晰。_x0004_左下肺尖段不规则软组织密度结节放射性浓聚，SUV约8.6，大小约1.4CM×2.3CM，边缘可见胸膜牵拉征；余两下肺斑片及条片影放射性分布未见异常；左下肺可见小结节状钙化灶放射性分布缺损；余两下肺肺纹理稀疏伴多发无肺纹理透亮区放射性分布稀疏；余两侧肺野未见确切病灶和异常放射性分布。气管、支气管通畅。心脏及大血管放射性分布未见异常。食管胸上段至胃贲门部粘膜明显增厚放射性浓聚，SUV约9.2。胸壁未见确切病灶和异常放射性分布。左锁下、纵隔左下上气管旁、血管前、主动脉上及左肺门多发肿大淋巴结放射性浓聚，SUV约8.9，最大约2.6CM×3.1CM；右肺门及两侧腋窝未见明显肿大淋巴结及异常放射性分布。_x0004_两侧脑实质密度、形态正常，放射性分布均匀、对称。诸脑室、脑池、脑沟、脑裂未见异常，中线结构居中。鼻咽、口咽、喉咽未见异常。右下颌窦稍低密度影放射性分布未见异常；额窦、蝶窦、筛窦及左侧下颌窦结构及放射性分布未见明显异常。甲状腺放射性分布未见异常。余颈部小淋巴结放射性分布未见异常。_x0004_肝脏形态、结构及放射性分布未见明显异常。肝门结构及放射性分布未见明显异常。肝内、外胆管及胆总管未见扩张。胆囊及十二指肠放射性分布未见异常。脾脏上极局部小片状低密度影放射性分布，直径约0.6CM。右肾囊性低密度影放射性分布稀疏，直径约1.6CM；左肾、胰腺、两侧肾下腺形态、结构及放射性分布未见异常。腹腔及腹膜后未见肿大淋巴结及异常放射性分布。_x0004_膀胱、肠管等形态、结构及放射性分布未见明显异常。前列腺点状高密度影放射性分布未见异常。两侧髂血管旁及腹股沟未见明显肿大淋巴结及异常放射性分布。_x0004_所见颅骨、各躯干骨、四肢骨放射性分布未见明显异常。_x0004_</t>
   </si>
   <si>
     <t>1.4CM×2.3CM</t>
@@ -5543,10 +5543,10 @@
     <t>胆囊息肉，两侧乳腺小叶增生，左乳小结节-考虑乳腺病可能，右乳低回声区-考虑手术区积液可能，随访；甲状腺左叶弥漫性病变伴增生结节肝肋上斜切118MM/（－），剑上纵切62MM/2指，肝区回声较密尚均，门脉主干内径10MM。脾肋间切31MM/（－）。胆囊66MM×25MM，壁下见3MM中等回声团块，胆总管4MM。胰头17MM，胰体12MM，胰尾14MM。左肾101MM×42MM×48MM，肾盂分离（－），右肾104MM×42MM×50MM，肾盂分离（－）。两侧输尿管未见明显扩张。两侧肾下腺区未见明显肿块回声，CDFI肝胆胰肾血流正常。甲状腺左叶40MM×18MM×16MM，内见数个无回声区，最大5MM×4MM，甲状腺右叶及峡部未显示。甲状腺内回声增粗不均匀，甲状腺内血流分布正常。颈部左侧甲状腺下动脉血流通畅，PSV0.26MM/s，RI0.57。左侧乳腺导管增多，腺体结构尚正常，12点见5MM×3MM低回声团块，边界清，CDFI未见明显血流。右侧乳腺导管增多，腺体结构尚正常，1-2点见10MM×6MM低回声区，内部回声不均匀，CDFI未见明显血流。两侧腋窝未见明显肿块。CDFI示血流分布尚正常。</t>
   </si>
   <si>
-    <t>心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号右室舒张功能减低，收缩功能正常心超声检测值：LA   23MM       AO     16MM        MV E 0.59MM/s     EF 58%LV   41MM       IVS    7MM            A 0.80MM/s     FS 30% RA   29MM       LVPW   7MMRV   12MM       PA     16MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图未见异常。</t>
-  </si>
-  <si>
-    <t>肺癌治疗后复查，对比2017-02-14片：右肺下叶肿物，较前未见明显变化；病变周围阻塞性炎症较前稍增多。纵隔、右肺门肿大淋巴结，考虑转移瘤，较前未见明显变化。左肺上叶新见少许条索灶、条片灶，考虑局限性肺不张可能。两下肺肺气肿。肝囊肿。多发椎体及附件、胸骨、两侧多根肋骨多发病变，考虑转移瘤，较前增多，部分较前增大；C7、T3椎体病理性骨折。C6-T1及T10相应水平椎管稍狭窄。肺癌治疗后复查，对比2017-02-14片：两肺纹理清晰，右肺下叶肺门旁见一不规则团块状肿物，边界不清，边缘见分叶、毛刺，大小约50MM×30MM，密度不均匀，明显强化，牵拉邻近胸膜，右下肺动静脉显示不清，病灶远端见多发斑片状密度增高影，较前稍增多。左肺上叶新见少许条索灶、条片灶，边界较清，部分内见支气管气像征。两肺下叶见多发透亮影。右肺下叶固有支气管狭窄中断。气管及余支气管分支通畅。两上气管旁、主肺动脉窗、主动脉旁、隆突上、右肺门见多发肿大淋巴结，大者短径约12MM，密度不均匀，增强扫描明显强化，较前未见明显变化。两侧胸腔未见积液。两侧胸膜无增厚、粘连。肝脏形态、各叶比例在正常范围以内，其外形轮廓光整。肝S2见一类圆形低密度灶，边界清，直径约3MM，未见强化。肝内胆管未见扩张，胆囊不大，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾及两肾下腺大小、形态未见异常，密度均匀。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描层面中C6-L4椎体及附件、胸骨、两侧多根肋骨见多发大小不等结节状、片状低密度区，周围未见硬化边，病变较前增多，部分较前增大；其中C7、T3椎体形态变扁；C6-T1及T10椎体、左侧第4后肋病变周围见软组织肿块，明显强化，相应水平椎管稍狭窄。</t>
+    <t>心脏结构及运动未见异常_x0004__x0004_各房室腔及大血管未探及异常血流信号_x0004__x0004_右室舒张功能减低，收缩功能正常心超声检测值：_x0004__x0004_LA   23MMAO     16MMV E 0.59m/s     EF 58%_x0004__x0004_LV   41MMIVS    7MMA 0.80m/s     FS 30% _x0004__x0004_RA   29MMLVPW   7MM_x0004__x0004_RV   12MMPA     16MM_x0004__x0004__x0004__x0004_二维及Ｍ型超声心动图特征：_x0004__x0004_升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；_x0004__x0004_各房室腔径正常。_x0004__x0004_室壁厚度及运动正常。房、室间隔连续性完好。_x0004__x0004_各组瓣膜形态、结构及运动正常。_x0004__x0004_心包及心包腔未见异常。_x0004__x0004_彩色及频谱多普勒超声心动图未见异常。</t>
+  </si>
+  <si>
+    <t>肺癌治疗后复查，对比2017-02-14片：_x0004_右肺下叶肿物，较前未见明显变化；病变周围阻塞性炎症较前稍增多。_x0004_纵隔、右肺门肿大淋巴结，考虑转移瘤，较前未见明显变化。_x0004_左肺上叶新见少许条索灶、条片灶，考虑局限性肺不张可能。_x0004_两下肺肺气肿。肝囊肿。_x0004_多发椎体及附件、胸骨、两侧多根肋骨多发病变，考虑转移瘤，较前增多，部分较前增大；C7、T3椎体病理性骨折。C6-T1及T10相应水平椎管稍狭窄。_x0004__x0004_肺癌治疗后复查，对比2017-02-14片：_x0004_两肺纹理清晰，右肺下叶肺门旁见一不规则团块状肿物，边界不清，边缘见分叶、毛刺，大小约50MM×30MM，密度不均匀，明显强化，牵拉邻近胸膜，右下肺动静脉显示不清，病灶远端见多发斑片状密度增高影，较前稍增多。左肺上叶新见少许条索灶、条片灶，边界较清，部分内见支气管气像征。两肺下叶见多发透亮影。_x0004_右肺下叶固有支气管狭窄中断。气管及余支气管分支通畅。_x0004_两上气管旁、主肺动脉窗、主动脉旁、隆突上、右肺门见多发肿大淋巴结，大者短径约12MM，密度不均匀，增强扫描明显强化，较前未见明显变化。_x0004_两侧胸腔未见积液。两侧胸膜无增厚、粘连。_x0004_肝脏形态、各叶比例在正常范围以内，其外形轮廓光整。肝S2见一类圆形低密度灶，边界清，直径约3MM，未见强化。肝内胆管未见扩张，胆囊不大，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。_x0004_脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾及两肾下腺大小、形态未见异常，密度均匀。_x0004_膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_扫描层面中C6-L4椎体及附件、胸骨、两侧多根肋骨见多发大小不等结节状、片状低密度区，周围未见硬化边，病变较前增多，部分较前增大；其中C7、T3椎体形态变扁；C6-T1及T10椎体、左侧第4后肋病变周围见软组织肿块，明显强化，相应水平椎管稍狭窄。_x0004_</t>
   </si>
   <si>
     <t>右肺下叶肺门旁</t>
@@ -5558,7 +5558,7 @@
     <t>右肺门肿大淋巴结,多发椎体及附件,胸骨,两侧多根肋骨</t>
   </si>
   <si>
-    <t>右上肺癌术后复查，对比2013-04-08日片：右肺下叶及上叶索条影及斑片状模糊影，考虑慢性炎症改变。甲状腺两侧叶内见低密度灶，考虑结节性甲状腺肿，较前相仿胆囊结石。脾内低密度灶，考虑囊肿可能性大。右肾小血管壁钙化。右上肺癌术后复查，对比2013-04-08日片：右肺下叶后段及上叶近胸膜处见索条影及斑片状模糊影，边界欠清，余两肺纹理清晰，肺内未见实质性病变。气管及支气管分支通畅。两侧锁骨下区、两肺门及纵隔、两侧腋窝未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜无增厚、粘连。扫描所见甲状腺两侧叶内见低密度灶，边界欠清，增强扫描不均匀轻度强化。肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，未见明显异常密度灶，增强扫描未见异常强化影。肝内胆管未见扩张，其内未见结石影，胆囊不大，其内可见类圆形结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，见一类圆形低密度灶，边界清，直径约4MM，未见强化。胰腺大小、形态未见异常，密度均匀。右侧肾盂内肾动脉血管壁可见壳状致密灶。。左肾及两肾下腺大小、形态未见异常，密度均匀。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描所见骨质未见破坏征象。</t>
+    <t>右上肺癌术后复查，对比2013-04-08日片：_x0004_右肺下叶及上叶索条影及斑片状模糊影，考虑慢性炎症改变。_x0004_甲状腺两侧叶内见低密度灶，考虑结节性甲状腺肿，较前相仿_x0004_胆囊结石。_x0004_脾内低密度灶，考虑囊肿可能性大。_x0004_右肾小血管壁钙化。右上肺癌术后复查，对比2013-04-08日片：_x0004_右肺下叶后段及上叶近胸膜处见索条影及斑片状模糊影，边界欠清，余两肺纹理清晰，肺内未见实质性病变。气管及支气管分支通畅。两侧锁骨下区、两肺门及纵隔、两侧腋窝未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜无增厚、粘连。_x0004_扫描所见甲状腺两侧叶内见低密度灶，边界欠清，增强扫描不均匀轻度强化。_x0004_肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，未见明显异常密度灶，增强扫描未见异常强化影。肝内胆管未见扩张，其内未见结石影，胆囊不大，其内可见类圆形结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，见一类圆形低密度灶，边界清，直径约4MM，未见强化。胰腺大小、形态未见异常，密度均匀。右侧肾盂内肾动脉血管壁可见壳状致密灶。。左肾及两肾下腺大小、形态未见异常，密度均匀。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_扫描所见骨质未见破坏征象。_x0004_</t>
   </si>
   <si>
     <t>None与2015-04-29胸部CT比较：1两肺部分结节较前增大，现约7MM(IM26)，原约3MM（IM25）。部分小结节同前，较大仍约7MM（IM26）。两肺上叶多发索条影同前。2纵隔及肺门部分肿大淋巴结较前相仿，较大仍约30MM×20MM（IM21），部分淋巴结较前增大，现约27MM×14MM（IM28），原约20MM×11MM（IM26）。两锁骨下区未见肿大淋巴结。3左侧叶间胸膜增厚，约为6MM（IM28），现约4MM（IM30）。未见胸水征象。4胸骨体下部、左侧第6后肋骨质破坏灶同前，伴少许软组织密度形成。多发胸椎密度欠均匀同前。</t>
@@ -5579,10 +5579,10 @@
     <t>两肺,左锁下,纵隔,左肺门淋巴结,椎体,右侧第2,第11后肋</t>
   </si>
   <si>
-    <t>右乳癌术后改变，右前胸壁皮肤不均匀增厚，考虑术后改变可能，建议随访。左乳良性钙化。右肺下叶下舌段软组织灶，原发性肺癌与转移瘤鉴别。左肺下叶前段、左侧斜裂斑片灶，考虑增殖灶可能性大。右锁下、纵隔及右肺门淋巴结，性质待定，建议随访。右乳癌根治术后复查：右侧乳腺缺如，右前胸壁皮肤不均匀增厚，未见明确结节、肿物影，左乳大小、形态正常，内见数个散在点状钙化灶，较大直径约2MM，未见明确结节肿物影。两侧腋窝及两侧内乳区未见明确肿大淋巴结。右肺下叶下舌段见一不规则软组织灶，大小约23MM×15MM，边界不清，边缘见分叶及长短毛刺，牵拉邻近胸膜，密度欠均匀，未见坏死及钙化，增强后呈明显强化；病灶远端见少许条索及斑片状模糊影；右肺下叶下舌段支气管延伸入内，远端截断。左肺下叶前段、左侧斜裂见数个小斑片灶，较大者约5MM×4MM，边界尚清。余两肺清晰，未见明确结节影。气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。右锁下、两上气管旁、主动脉弓旁、右肺门见数个淋巴结，较大短径约10MM，边界尚清，增强后呈中度强化。两侧胸腔未见积液。胸膜未见增厚。所见骨质未见明确破坏征象。</t>
-  </si>
-  <si>
-    <t>肝脏小囊肿。两肾小囊肿。子宫肌瘤部分伴钙化。右侧髂骨、左侧骶骨及L5椎体改变，与旧片对比未见明显变化。肝脏形态大小正常，表面光滑，各叶比例正常，肝右叶可见点状无强化低密度影。肝内外胆管未见明显扩张，胆囊不大，胆囊壁不厚。胰腺形态密度未见异常，脾不大，密度均匀。胃肠道管壁未见异常增厚，管腔无狭窄及扩张。肠系膜密度均匀。两肾可见点状无强化低密度影，两侧肾下腺未见异常，膀胱充盈尚可，壁不厚。子宫右后壁可见卵圆形稍高密度影，大小约3.4CM×3.2CM，其内可见钙化，增强扫描强化程度略高于子宫肌层，边界较清晰，左前壁增强后见强化结节影，直径约0.7CM。腹膜后未见确切肿大淋巴结影。右侧髂骨及左侧骶骨内可见结节状高密度影。L5椎体骨质密度异常。</t>
+    <t>右乳癌术后改变，右前胸壁皮肤不均匀增厚，考虑术后改变可能，建议随访。_x0004_左乳良性钙化。_x0004_右肺下叶下舌段软组织灶，原发性肺癌与转移瘤鉴别。_x0004_左肺下叶前段、左侧斜裂斑片灶，考虑增殖灶可能性大。_x0004_右锁下、纵隔及右肺门淋巴结，性质待定，建议随访。右乳癌根治术后复查：_x0004_右侧乳腺缺如，右前胸壁皮肤不均匀增厚，未见明确结节、肿物影，_x0004_左乳大小、形态正常，内见数个散在点状钙化灶，较大直径约2MM，未见明确结节肿物影。_x0004_两侧腋窝及两侧内乳区未见明确肿大淋巴结。_x0004_右肺下叶下舌段见一不规则软组织灶，大小约23MM×15MM，边界不清，边缘见分叶及长短毛刺，牵拉邻近胸膜，密度欠均匀，未见坏死及钙化，增强后呈明显强化；病灶远端见少许条索及斑片状模糊影；右肺下叶下舌段支气管延伸入内，远端截断。_x0004_左肺下叶前段、左侧斜裂见数个小斑片灶，较大者约5MM×4MM，边界尚清。_x0004_余两肺清晰，未见明确结节影。_x0004_气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。_x0004_右锁下、两上气管旁、主动脉弓旁、右肺门见数个淋巴结，较大短径约10MM，边界尚清，增强后呈中度强化。_x0004_两侧胸腔未见积液。胸膜未见增厚。_x0004_所见骨质未见明确破坏征象。</t>
+  </si>
+  <si>
+    <t>肝脏小囊肿。两肾小囊肿。子宫肌瘤部分伴钙化。右侧髂骨、左侧骶骨及L5椎体改变，与旧片对比未见明显变化。肝脏形态大小正常，表面光滑，各叶比例正常，肝右叶可见点状无强化低密度影。肝内外胆管未见明显扩张，胆囊不大，胆囊壁不厚。胰腺形态密度未见异常，脾不大,密度均匀。胃肠道管壁未见异常增厚，管腔无狭窄及扩张。肠系膜密度均匀。两肾可见点状无强化低密度影，两侧肾下腺未见异常，膀胱充盈尚可，壁不厚。子宫右后壁可见卵圆形稍高密度影，大小约3.4CM×3.2CM，其内可见钙化，增强扫描强化程度略高于子宫肌层，边界较清晰，左前壁增强后见强化结节影，直径约0.7CM。腹膜后未见确切肿大淋巴结影。右侧髂骨及左侧骶骨内可见结节状高密度影。L5椎体骨质密度异常。</t>
   </si>
   <si>
     <t>肝囊肿肝肋上斜切121MM/（－），剑上纵切56MM/2指，肝区回声较密尚均，肝内见数个无回声区，最大7MM，门脉主干内径10MM，左支内径7MM，流速0.21MM/s，主干及右左支血流通畅，为向肝血流，流速曲线正常，脾门处脾静脉内径5MM，血流通畅。肝静脉血流通畅。脾肋间切28MM/（－）。胆囊62MM×21MM，胆总管4MM。胰头15MM，胰体11MM，胰尾12MM。左肾101MM×43MM×44MM，肾盂分离（－），右肾101MM×40MM×42MM，肾盂分离（－）。两侧输尿管未见明显扩张。两侧肾下腺区未见明显肿块回声。CDFI肝胆胰肾血流正常。两侧颌上、两侧颈血管旁及两侧锁骨下未见明显肿块回声。CDFI未见异常血流。</t>
@@ -5597,10 +5597,10 @@
     <t>50MM×43MM</t>
   </si>
   <si>
-    <t>心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号心功能正常心超声检测值：LA   20MM       AO     27MM        MV E 0.41MM/s     EF 64%LV   44MM       IVS     5MM           A 0.46MM/s     FS 34% RA   29MM       LVPW    5MMRV   14MM       PA     16MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图未见异常。</t>
-  </si>
-  <si>
-    <t>None肺癌化疗后复查，较2017-07-31CT片对比：1、右肺上叶背段见一软组织团块，边界尚清，范围约58MM×38MM，呈分叶状，密度不均匀，内见小结节状高密度影，增强扫描呈轻度强化，累及邻近胸膜，较前缩小；邻近右上肺背段、后基底段、右下肺舌段可见条状、斑片状影，边界不清，考虑炎症。2、两肺下叶、左肺中叶、左肺上叶外基底段可见多发结节状致密灶，边界尚清，周围见多发索条状影，部分与胸膜粘连，考虑纤维增殖钙化灶，较前相仿。3、隆突上、右肺门、右上肺叶间可见多发肿大淋巴结，边界欠清，部分相互融合，大者范围约36MM×23MM，部分内见钙化，增强呈不均匀强化，包绕胸主动脉，包绕、挤压右上肺支气管，管腔变窄，考虑淋巴结转移，较前缩小。4、肝右外叶与腹壁间隙见一结节，大小约26MM×12MM，边界清，呈轻度强化，较前缩小，考虑转移瘤。5、肝S7边缘见一致密灶，边界清楚，直径约2MM，考虑钙化灶，大致同前。6、右肾盂见致密灶，考虑结石。7、左肾下腺见一结节，大小约20MM×13MM，边界尚清，轻度强化，考虑转移瘤，较前稍缩小。8、扫描范围内骨质结构未见破坏征象。</t>
+    <t>心脏结构及运动未见异常_x0004__x0004_各房室腔及大血管未探及异常血流信号_x0004__x0004_心功能正常心超声检测值：_x0004__x0004_LA   20MMAO     27MMV E 0.41m/s     EF 64%_x0004__x0004_LV   44MMIVS     5MMA 0.46m/s     FS 34% _x0004__x0004_RA   29MMLVPW    5MM_x0004__x0004_RV   14MMPA     16MM_x0004__x0004__x0004__x0004_二维及Ｍ型超声心动图特征：_x0004__x0004_升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；_x0004__x0004_各房室腔径正常。_x0004__x0004_室壁厚度及运动正常。房、室间隔连续性完好。_x0004__x0004_各组瓣膜形态、结构及运动正常。_x0004__x0004_心包及心包腔未见异常。_x0004__x0004_彩色及频谱多普勒超声心动图未见异常。</t>
+  </si>
+  <si>
+    <t>None肺癌化疗后复查，较2017-07-31CT片对比：_x0004_1、右肺上叶背段见一软组织团块，边界尚清，范围约58MM×38MM，呈分叶状，密度不均匀，内见小结节状高密度影，增强扫描呈轻度强化，累及邻近胸膜，较前缩小；邻近右上肺背段、后基底段、右下肺舌段可见条状、斑片状影，边界不清，考虑炎症。_x0004_2、两肺下叶、左肺中叶、左肺上叶外基底段可见多发结节状致密灶，边界尚清，周围见多发索条状影，部分与胸膜粘连，考虑纤维增殖钙化灶，较前相仿。_x0004_3、隆突上、右肺门、右上肺叶间可见多发肿大淋巴结，边界欠清，部分相互融合，大者范围约36MM×23MM，部分内见钙化，增强呈不均匀强化，包绕胸主动脉，包绕、挤压右上肺支气管，管腔变窄，考虑淋巴结转移，较前缩小。_x0004_4、肝右外叶与腹壁间隙见一结节，大小约26MM×12MM，边界清，呈轻度强化，较前缩小，考虑转移瘤。_x0004_5、肝S7边缘见一致密灶，边界清楚，直径约2MM，考虑钙化灶，大致同前。_x0004_6、右肾盂见致密灶，考虑结石。_x0004_7、左肾下腺见一结节，大小约20MM×13MM，边界尚清，轻度强化，考虑转移瘤，较前稍缩小。_x0004_8、扫描范围内骨质结构未见破坏征象。</t>
   </si>
   <si>
     <t>58MM×38MM</t>
@@ -5612,19 +5612,19 @@
     <t>肺癌化疗后复查，右肺下叶肿物，较前缩小。两肺小类结节灶，考虑增殖灶可能性大，大致同前。左肺中叶炎性病变，较前吸收。纵隔、右肺门淋巴结，较前缩小。右侧胸膜稍增厚粘连。原右侧肾静脉充盈缺损，现已不明显。胆囊小结石。甲状腺左叶低密度灶，考虑结节性甲状腺肿可能性大。肺癌化疗后复查，对比2015-07-06片：右肺下叶见软组织肿块，大小约39MM×37MM，密度不均匀，增强扫描见强化，病灶牵拉胸膜，较前缩小。左肺中叶及右下肺舌叶、右肺上叶小类结节灶，长径约3MM~5MM，边界尚清。左肺中叶见片状模糊影，边界欠清。气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。右上气管旁、主肺动脉窗、右侧肺门见多个淋巴结，最大者约21MM×16MM，右肺门淋巴结较前缩小。两侧胸腔未见积液。右胸膜增厚粘连。左侧胸膜未见增厚。甲状腺左叶见多发斑片状低密度影，边界清，最大层面大小约12MM×8MM，增强后未见强化。肝右叶缺失，余肝脏密度尚均匀，未见异常密度灶。肝内胆管未见扩张，其内未见结石影。胆囊及胆总管未见扩张，胆囊管内见小结石影。肝门区未见明确病变。门静脉未见异常。脾稍增大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾未见异常。两肾下腺未见肿物。腹膜后未见肿大淋巴结。扫描范围未见明显骨质破坏。</t>
   </si>
   <si>
-    <t>左下肺癌术后改变。左肺少许斑片及条索灶，考虑增殖灶，较前相仿。左侧少量胸腔积液，较前相仿。左侧胸膜稍增厚。左乳外下象限小结节，考虑良性病变，较前相仿。多发肝囊肿。左下肺癌术后，对比2016-12-21CT：左下肺术后缺失，支气管残端未见明显异常软组织。左肺上叶肺门旁见少许条片影，呈术后改变，未见明显实性肿物。左肺中叶及上叶胸膜上见散在斑片、条索灶，边界模糊，与邻近胸膜粘连，较前相仿。右肺未见明显实质性病变。气管及其余支气管尚通畅。纵隔、两肺门未见明显肿大淋巴结。左侧胸腔见少量积液，较前相仿；右侧未见胸腔积液。左侧胸膜稍厚，右侧胸膜未见增厚。左乳外下象限见小结节强化灶，大者直径约6MM，界清。左侧胸壁呈术后改变。肝脏形态、各叶比例未见明显异常，轮廓光整，肝内见散在多发小囊状低密度灶，大者位于S5，直径约5MM，增强扫描未见强化。肝内外胆管、胆总管未见扩张。胆囊不大，未见明显结石。肝门区结构未见异常。门静脉主干及分支未见充盈缺损。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾未见明确异常。两侧肾下腺未见明显异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围骨质结构未见破坏征象。</t>
-  </si>
-  <si>
-    <t>右下肺切除+胸膜粘连烙断术后复查：右肺纤维索条影，考虑术后改变。右胸腔游离及包裹积液，考虑术后改变。左肺下叶尖段磨玻璃密度灶，增殖灶可能性大，同前。左肺中叶、左肺上叶少许纤维灶，同前。甲状腺两叶内稍低密度灶，考虑结节性甲状腺肿可能性大，同前。肝多发囊肿。两肾囊肿，部分合并出血。左肾下腺类结节灶（2个），考虑腺瘤可能性大。右下肺切除+胸膜粘连烙断术后复查：右下肺术后部分缺如，术区见金属缝合钉影及纤维索条影，现右残肺膨胀良好，右肺门区见少许纤维索条影，考虑为术后改变。左肺下叶尖段一片状磨玻璃密度灶，大小约19MM×14MM，边界欠清，病灶内见条片状高密度影，左肺中叶、左肺上叶后基底段见少许条索灶，边界清，与邻近胸膜粘连。气管、右下、上叶及左肺各叶支气管分枝通畅，未见明显软组织肿物或受压变窄。两锁下、两腋窝、两肺门及纵隔未见明确肿大淋巴结。右胸腔见少量游离积液，右下胸腔见少量包裹积液，左胸腔未见积液；右下胸膜增厚，左胸膜未见增厚；未见心包积液。所示甲状腺两叶见数个类结节稍低密度灶，大者直径约16MM，边界欠清，轻度强化。肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，肝内见多发类圆形低密度灶，大者直径约30MM，界清，未见强化。肝内胆管未见扩张，其内未见结石影，胆囊不大，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾见数个类圆形低密度灶及高密度灶，界清，大者直径约11MM，增强扫描未见强化。左肾下腺见2个类结节灶，大小分别约17MM×12MM、13MM×8MM，边界尚清，密度呈低密度，增强扫描轻度强化。右肾下腺大小、形态未见异常，密度均匀。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描所见骨质未见破坏征象。</t>
-  </si>
-  <si>
-    <t>风心：1、轻度二尖瓣狭窄伴轻度反流2、主动脉瓣钙化3、轻度肺动脉高压伴轻度三尖瓣反流常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，34，20-37，右房内径，43，19-40，右室舒张末内径，35，35-56，右室收缩末内径，23，23-35，室间隔厚度，12，6-11，右室后壁厚度，9，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房增大，右室内径正常，室间隔基底段稍增厚，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣增厚，开放略呈圆隆状，二维估测瓣口面积2.0CM，2，，彩色多普勒测及轻度二尖瓣反流。，3、主动脉不增宽，主动脉瓣钙化，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻度三尖瓣反流估测肺动脉收缩压约46MMHg，。，三、，右心功能测定：，LVEF：61%；二尖瓣血流图示狭窄波形，四、组织多普勒测定：，DTI示S波峰值：9.9CM/s；，五、结论：，</t>
-  </si>
-  <si>
-    <t>食管癌放化疗后，对比2016-7-25CT：颈段及部分胸下段局限性增厚，较前未见明显变化。左侧气管食管沟肿大淋巴结，考虑转移，较前未见明显变化。两肺下叶纵隔旁斑片灶，考虑放射性炎症可能大，左侧病变范围较前稍增大，右侧较前未见明显变化。两颈II区~V区数个小淋巴结，考虑反应性淋巴结可能大，大致同前。下腹部未见明确异常。食管癌放化疗后，对比2016-7-25CT：颈段及部分胸下段食管局限性管壁增厚，最厚约12MM，纵径约30MM，增强后较明显强化，较前未见明显变化；病灶部分与气管后缘分界欠清楚，邻近左侧气管食管沟见肿大淋巴结，最大约15MM×11MM，与病灶分界不清，增强后较明显强化，较前未见明显变化。两肺下叶纵隔旁新见少许斑片灶，边界欠清，左侧病变范围较前稍增大，右侧较前未见明显变化；左肺中叶外侧段见斑片状密度增高灶，边界清；余肺纹理清晰，肺内未见实质性病变。余纵隔及两肺门未见明确肿大淋巴结，气管及支气管分支通畅。两侧胸腔未见积液。右侧纵隔旁胸膜结节状增厚，大小约21MM×20MM；左侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整。肝实质密度均匀，增强后未见异常强化，肝门区正常。门静脉主干及其分支未见异常。胆囊大小正常，其内未见结石，胆总管未见扩张，其内未见结石。胰腺、脾脏大小、形态正常，密度均匀，增强后未见异常强化灶。两肾及两肾下腺形态、大小、密度未见异常。胃右血管旁、腹腔干、腹主动脉未见明确肿大淋巴结。颈部结构清晰，各血管充盈良好。甲状腺两叶及峡部形态正常，密度均匀。喉咽腔形态正常，两侧真假声带未见增厚，前联合未见增厚，梨状窝对称。两侧颌上腺、腮腺大小形态正常，密度均匀。颈部肌群排列对称，密度均匀，肌间隙未见明显异常。两颈II区~V区见数个小淋巴结，最大约8MM×6MM，边界清，密度均匀，增强后均匀强化，较前未见明显变化。扫描所见骨质未见明确破坏征象。</t>
-  </si>
-  <si>
-    <t>1.右肺下叶前段糖代谢轻度增高的软组织影，周围型MT可能，炎症不除外，请结合临床；两肺少许慢性炎症。2.甲状腺右叶多发无糖代谢增高的低密度结节伴微小钙化，良性病变可能，请随访。3.肝脏多发无糖代谢的囊性低密度灶，考虑良性病变。4.胸椎退变。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行胸部PET/CT断层显像。胸部PET/CT图像示右肺下叶前段见一最大截面积约48.6MM×17.5MM、糖代谢轻度增高的不规则软组织影，内见充气支气管，边缘见磨玻璃影和长短毛刺，相邻胸膜牵拉凹陷，最大SUV值约2.70，延迟1.5小时约3.13，滞留指数约15.9%；左肺下叶前段、上叶后基底段见少许无糖代谢增高的小结节模糊影；右肺下叶上舌段、左肺中叶内侧段和上叶内基底段见少许无糖代谢增高的片絮影；纵隔、两肺门、腋窝无异常糖代谢增高的淋巴结；左后胸膜少许增厚；两侧胸腔无积液；心影不大；两侧乳腺无殊。另见甲状腺左叶缺如（手术切除），右叶增大，内见多发大小不等低密度结节，最大者约13.6MM×17.3MM，密度不均，边界欠清，不伴异常糖代谢增高；右叶上极见一直径约2.5MM微小钙化灶。肝右左叶多发大小不等类圆形囊性低密度灶，最大者位于肝右内叶胆囊窝旁，大小约30.0MM×25.6MM，密度均，边界清。骨骼PET图像未见异常糖代谢增强。CT定位片见胸椎顺列，生理曲度存在；平扫骨窗胸4椎体内见斑块状致密影，考虑骨岛；胸椎椎骨缘和小关节骨质增生；余骨无殊。</t>
+    <t>左下肺癌术后改变。_x0004_左肺少许斑片及条索灶，考虑增殖灶，较前相仿。_x0004_左侧少量胸腔积液，较前相仿。_x0004_左侧胸膜稍增厚。_x0004_左乳外下象限小结节，考虑良性病变，较前相仿。_x0004_多发肝囊肿。_x0004_左下肺癌术后，对比2016-12-21CT：_x0004_左下肺术后缺失，支气管残端未见明显异常软组织。_x0004_左肺上叶肺门旁见少许条片影，呈术后改变，未见明显实性肿物。左肺中叶及上叶胸膜上见散在斑片、条索灶，边界模糊，与邻近胸膜粘连，较前相仿。_x0004_右肺未见明显实质性病变。_x0004_气管及其余支气管尚通畅。纵隔、两肺门未见明显肿大淋巴结。_x0004_左侧胸腔见少量积液，较前相仿；右侧未见胸腔积液。左侧胸膜稍厚，右侧胸膜未见增厚。_x0004_左乳外下象限见小结节强化灶，大者直径约6MM，界清。左侧胸壁呈术后改变。_x0004_肝脏形态、各叶比例未见明显异常，轮廓光整，肝内见散在多发小囊状低密度灶，大者位于S5，直径约5MM，增强扫描未见强化。_x0004_肝内外胆管、胆总管未见扩张。胆囊不大，未见明显结石。_x0004_肝门区结构未见异常。门静脉主干及分支未见充盈缺损。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。_x0004_两肾未见明确异常。_x0004_两侧肾下腺未见明显异常。_x0004_膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_扫描范围骨质结构未见破坏征象。</t>
+  </si>
+  <si>
+    <t>右下肺切除+胸膜粘连烙断术后复查：右肺纤维索条影，考虑术后改变。_x0004_右胸腔游离及包裹积液，考虑术后改变。_x0004_左肺下叶尖段磨玻璃密度灶，增殖灶可能性大，同前。_x0004_左肺中叶、左肺上叶少许纤维灶，同前。_x0004_甲状腺两叶内稍低密度灶，考虑结节性甲状腺肿可能性大，同前。_x0004_肝多发囊肿。_x0004_两肾囊肿，部分合并出血。_x0004_左肾下腺类结节灶（2个），考虑腺瘤可能性大。_x0004_右下肺切除+胸膜粘连烙断术后复查：_x0004_右下肺术后部分缺如，术区见金属缝合钉影及纤维索条影，现右残肺膨胀良好，右肺门区见少许纤维索条影，考虑为术后改变。_x0004_左肺下叶尖段一片状磨玻璃密度灶，大小约19MM×14MM，边界欠清，病灶内见条片状高密度影，左肺中叶、左肺上叶后基底段见少许条索灶，边界清，与邻近胸膜粘连。_x0004_气管、右下、上叶及左肺各叶支气管分枝通畅，未见明显软组织肿物或受压变窄。_x0004_两锁下、两腋窝、两肺门及纵隔未见明确肿大淋巴结。_x0004_右胸腔见少量游离积液，右下胸腔见少量包裹积液，左胸腔未见积液；右下胸膜增厚，左胸膜未见增厚；未见心包积液。_x0004_所示甲状腺两叶见数个类结节稍低密度灶，大者直径约16MM，边界欠清，轻度强化。_x0004_肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，肝内见多发类圆形低密度灶，大者直径约30MM，界清，未见强化。肝内胆管未见扩张，其内未见结石影，胆囊不大，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾见数个类圆形低密度灶及高密度灶，界清，大者直径约11MM，增强扫描未见强化。_x0004_左肾下腺见2个类结节灶，大小分别约17MM×12MM、13MM×8MM，边界尚清，密度呈低密度，增强扫描轻度强化。右肾下腺大小、形态未见异常，密度均匀。_x0004_膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_扫描所见骨质未见破坏征象。</t>
+  </si>
+  <si>
+    <t>风心：1、轻度二尖瓣狭窄伴轻度反流2、主动脉瓣钙化3、轻度肺动脉高压伴轻度三尖瓣反流常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,34,20-37,右房内径,43,19-40,右室舒张末内径,35,35-56,右室收缩末内径,23,23-35,室间隔厚度,12,6-11,右室后壁厚度,9,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房增大，右室内径正常，室间隔基底段稍增厚，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣增厚，开放略呈圆隆状，二维估测瓣口面积2.0CM,2,，彩色多普勒测及轻度二尖瓣反流。,3、主动脉不增宽，主动脉瓣钙化，开放不受限，彩色多普勒未测及主动脉瓣反流。,4、左房室不大，肺动脉不增宽，,连续多普勒据轻度三尖瓣反流估测肺动脉收缩压约46MMHg,。,三、,右心功能测定：,LVEF:61%；二尖瓣血流图示狭窄波形,四、组织多普勒测定：,DTI示S波峰值:9.9CM/s;,五、结论：,</t>
+  </si>
+  <si>
+    <t>食管癌放化疗后，对比2016-7-25CT：_x0004_颈段及部分胸下段局限性增厚，较前未见明显变化。_x0004_左侧气管食管沟肿大淋巴结，考虑转移，较前未见明显变化。_x0004_两肺下叶纵隔旁斑片灶，考虑放射性炎症可能大，左侧病变范围较前稍增大，右侧较前未见明显变化。_x0004_两颈II区~V区数个小淋巴结，考虑反应性淋巴结可能大，大致同前。_x0004_下腹部未见明确异常。_x0004__x0004_食管癌放化疗后，对比2016-7-25CT：_x0004_颈段及部分胸下段食管局限性管壁增厚，最厚约12MM,纵径约30MM，增强后较明显强化，较前未见明显变化；病灶部分与气管后缘分界欠清楚，邻近左侧气管食管沟见肿大淋巴结，最大约15MM×11MM，与病灶分界不清，增强后较明显强化，较前未见明显变化。_x0004_两肺下叶纵隔旁新见少许斑片灶，边界欠清，左侧病变范围较前稍增大，右侧较前未见明显变化；左肺中叶外侧段见斑片状密度增高灶，边界清；余肺纹理清晰，肺内未见实质性病变。余纵隔及两肺门未见明确肿大淋巴结，气管及支气管分支通畅。两侧胸腔未见积液。右侧纵隔旁胸膜结节状增厚，大小约21MM×20MM；左侧胸膜无增厚、粘连。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整。肝实质密度均匀，增强后未见异常强化，肝门区正常。门静脉主干及其分支未见异常。胆囊大小正常，其内未见结石，胆总管未见扩张，其内未见结石。胰腺、脾脏大小、形态正常，密度均匀，增强后未见异常强化灶。两肾及两肾下腺形态、大小、密度未见异常。_x0004_胃右血管旁、腹腔干、腹主动脉未见明确肿大淋巴结。_x0004_颈部结构清晰，各血管充盈良好。甲状腺两叶及峡部形态正常，密度均匀。喉咽腔形态正常，两侧真假声带未见增厚，前联合未见增厚，梨状窝对称。两侧颌上腺、腮腺大小形态正常，密度均匀。颈部肌群排列对称，密度均匀，肌间隙未见明显异常。_x0004_两颈II区~V区见数个小淋巴结，最大约8MM×6MM，边界清，密度均匀，增强后均匀强化，较前未见明显变化。_x0004_扫描所见骨质未见明确破坏征象。</t>
+  </si>
+  <si>
+    <t>1.右肺下叶前段糖代谢轻度增高的软组织影，周围型MT可能，炎症不除外，请结合临床；两肺少许慢性炎症。_x0004_2.甲状腺右叶多发无糖代谢增高的低密度结节伴微小钙化，良性病变可能，请随访。_x0004_3.肝脏多发无糖代谢的囊性低密度灶，考虑良性病变。_x0004_4.胸椎退变。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行胸部PET/CT断层显像。胸部PET/CT图像示右肺下叶前段见一最大截面积约48.6MM×17.5MM、糖代谢轻度增高的不规则软组织影，内见充气支气管，边缘见磨玻璃影和长短毛刺，相邻胸膜牵拉凹陷，最大SUV值约2.70，延迟1.5小时约3.13，滞留指数约15.9%；左肺下叶前段、上叶后基底段见少许无糖代谢增高的小结节模糊影；右肺下叶上舌段、左肺中叶内侧段和上叶内基底段见少许无糖代谢增高的片絮影；纵隔、两肺门、腋窝无异常糖代谢增高的淋巴结；左后胸膜少许增厚；两侧胸腔无积液；心影不大；两侧乳腺无殊。另见甲状腺左叶缺如（手术切除），右叶增大，内见多发大小不等低密度结节，最大者约13.6MM×17.3MM，密度不均，边界欠清，不伴异常糖代谢增高；右叶上极见一直径约2.5MM微小钙化灶。肝右左叶多发大小不等类圆形囊性低密度灶，最大者位于肝右内叶胆囊窝旁，大小约30.0MM×25.6MM，密度均，边界清。骨骼PET图像未见异常糖代谢增强。CT定位片见胸椎顺列，生理曲度存在；平扫骨窗胸4椎体内见斑块状致密影，考虑骨岛；胸椎椎骨缘和小关节骨质增生；余骨无殊。</t>
   </si>
   <si>
     <t>右肺下叶前段</t>
@@ -5654,13 +5654,13 @@
     <t>脂肪肝肝肋上斜切117MM/（－），剑上纵切54MM/2指，肝区回声密集增强，门脉主干内径10MM，左支内径8MM，流速0.20MM/s，主干及右左支血流通畅，为向肝血流，流速曲线正常，脾门处脾静脉内径6MM，血流通畅。肝静脉血流通畅。脾肋间切23MM/（－）。胆囊82MM×26MM，胆总管4MM。胰头16MM，胰体15MM，胰尾16MM。左肾95MM×40MM×41MM，肾盂分离(-)，右肾99MM×40MM×42MM，肾盂分离(-)。两侧输尿管未见明显扩张。两侧肾下腺区未见明显肿块回声。CDFI肝胆胰肾血流正常。左侧乳腺腺体结构尚正常，未见明显肿块回声。右乳未显示。CDFI示左侧乳腺腺体血流分布尚正常。两侧腋窝未见明显肿块。CDFI示血流分布尚正常。</t>
   </si>
   <si>
-    <t>“肺肉瘤样癌外院放化疗后”复查：右肺斑片状、条片状影，考虑放射性炎症并局限性肺不张，较前增多。右侧胸腔积液并部分包裹性积液形成，较前增多。两侧肋胸膜、纵隔胸膜不均匀增厚，考虑转移瘤，累及心包膜、右第3前肋、右侧第8后肋骨及周围背部右侧竖脊肌，较前增大。腹部未见明确病变。两侧会阴部囊性灶，考虑前庭大腺，较前相仿。“肺肉瘤样癌外院放化疗后”复查，对比2017-05-02片：右肺下叶上舌段、上叶可见多发斑片状、条片状高密度影，边界模糊，密度不均匀，内见支气管气象，增强扫描呈明显强化，内见小血管穿行。左肺上叶外基底段、后基底段见斑片状稍高密度影及条索影，边界欠清。气管及支气管分支通畅。右侧胸腔可见积液，部分呈包裹性改变，较前增多。两侧肋胸膜、纵隔胸膜不均匀增厚，并可见多发结节及肿块，较大者位于右心缘旁，边界不清，范围难以测量，密度不均匀，与心包膜、包裹性积液分界不清，增强呈明显不均匀强化；另见右前肋胸膜病灶累及右侧第3前肋骨质，范围较前增大。右侧第8后肋骨骨质破坏，周围见不规则软组织肿块，范围约53MM×47MM，增强扫描呈不均匀强化，向外侵犯背部右侧竖脊肌，向内侵犯胸膜，范围较前增大。肝脏形态正常，外形轮廓光整，密度均匀，增强扫描未见异常强化表现。胆囊大小正常，未见结石。肝内胆管及胆总管未见扩张。肝门区结构未见异常。门静脉主干及分支未见充盈缺损。脾、胰腺大小、形态正常，密度均匀。两肾、两肾下腺未见明确异常。膈脚后、腹主动脉旁未见肿大淋巴结。膀胱充盈可，境界清楚，膀胱壁未见增厚。子宫萎小，密度及强化未见异常，宫腔未见扩张，子宫颈未见明确异常。两侧附件区未见软组织肿块。直肠未见明确异常。两侧髂血管旁、腹股沟未见肿大淋巴结。两侧会阴部各见一囊性灶，长径约22MM、25MM，边界欠清，平扫呈高密度，增强后未见明显强化。余扫描范围内骨质结构未见破坏征象。</t>
-  </si>
-  <si>
-    <t>直肠癌术后：1、肠道未见复发征象。2、右肺下叶尖后段结节，伴高代谢，考虑为恶性病变可能大（肺癌？）。两肺多发小结节，未见高代谢，性质待定；左肺下叶及右肺上叶支气管扩张伴周围炎症；两肺气肿伴肺大疱；两肺陈旧病变。3、甲状腺右叶增大伴弥漫高代谢，建议B超检查除外恶性。右锁骨区多发小淋巴结，未见高代谢，性质待定，建议结合右叶甲状腺病变情况并随访。4、脑部未见明显异常代谢征象；鼻中隔偏曲；肝囊肿；副脾；右肾囊肿；左侧睾丸鞘膜积液；T5、骶骨骨岛。空腹6小时以下，静脉注射显像剂，平静休息60MMin后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：直肠癌内镜上切除术后：直肠及余肠道未见异常浓聚灶。直肠周围、腹盆腔内、腹膜后、两侧腹股沟区未见明显肿大及异常浓聚淋巴结。腹水征阴性。右肺下叶尖后段可见一不规则软组织密度结节，边缘可见短毛刺，大小约2.4CM×1.6CM，伴放射性浓聚，SUVmax5.6，其内密度不均。左肺下叶及右肺上叶支气管扩张，部分呈囊状，边缘可见多发片状高密度影及小结节，部分放射性分布轻度增高，SUVmax1.8。余两肺可见多发软组织密度小结节，未见明显放射性浓聚。左肺中叶内侧段可见钙化结节。两肺可见多发索条。两肺可见多发囊状薄壁及无壁透亮区，以左肺中叶及右肺上叶胸膜上为著，较大者直径约3.6CM。纵隔及两肺门未见肿大及异常浓聚淋巴结。两侧胸膜无增厚，胸水征阴性。甲状腺右叶增大，其内密度不均，伴弥漫放射性浓聚；甲状腺左叶不大，放射性分布未见明显增高。右锁骨区见多发小淋巴结，较大者约0.9CM×0.6CM，未见放射性浓聚；两颈部及左锁骨下区未见明显异常淋巴结浓聚。大脑形态如常，皮层各叶放射性分布均匀。皮层上各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，双侧小脑对称。口咽部双侧腺体显影对称，鼻咽部无异常放射性浓聚。鼻中隔向左偏曲。心肌显影清晰。上腔静脉走行区未见异常浓聚灶。胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝左叶被膜上可见一小囊状低密度灶，放射性分布未见增高；肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。脾门及脾脏前外侧见副脾。双侧肾脏显影可，右肾中极可见一囊状水样密度灶，直径约1.3CM，放射性分布呈稀疏区；余两肾实质密度均匀，肾盂、肾盏及输尿管无扩张。双侧肾下腺显影大致正常。腹部可见条索状肠影。膀胱放射性浓聚如常，膀胱壁无增厚。前列腺大小正常，放射性分布大致正常。左侧睾丸鞘膜内可见液体密度灶，放射性分布呈稀疏区。T5、骶骨可见致密结节；余视野内轴心骨未见异常放射性浓聚。视野内皮肤及软组织内未见异常放射性摄取。</t>
-  </si>
-  <si>
-    <t>None右上肺癌并转移免疫治疗后复查，对比2017-9-29片：右肺上叶肿物，大小约65MM×48MM，周围阻塞炎症，大致同前。左肺下叶小结节灶，增殖灶可能性大，较前未见明显变化。右肺下叶舌段、左肺中叶斑片灶，考虑炎症，较前未见明显变化。右胸腔少量积液，较前相仿。纵隔隆突上、右肺门淋巴结肿大，考虑转移，大的短径约20MM，部分较前稍增大。纵隔、两腋窝小淋巴结，考虑反应性淋巴结，较前无明显变化。肝S8、S5结节，直径分别约28MM、23MM，呈不均匀明显强化，考虑转移瘤。肝多发小囊肿。左肾小囊肿。前列腺钙化。多个胸腰椎椎体致密灶，考虑许莫氏结节，大致同前。盆腔未见占位性病变。</t>
+    <t>“肺肉瘤样癌外院放化疗后”复查：_x0004_右肺斑片状、条片状影，考虑放射性炎症并局限性肺不张，较前增多。_x0004_右侧胸腔积液并部分包裹性积液形成，较前增多。_x0004_两侧肋胸膜、纵隔胸膜不均匀增厚，考虑转移瘤，累及心包膜、右第3前肋、_x0004_右侧第8后肋骨及周围背部右侧竖脊肌，较前增大。_x0004_腹部未见明确病变。_x0004_两侧会阴部囊性灶，考虑前庭大腺，较前相仿。“肺肉瘤样癌外院放化疗后”复查，对比2017-05-02片：_x0004_右肺下叶上舌段、上叶可见多发斑片状、条片状高密度影，边界模糊，密度不均匀，内见支气管气象，增强扫描呈明显强化，内见小血管穿行。_x0004_左肺上叶外基底段、后基底段见斑片状稍高密度影及条索影，边界欠清。气管及支气管分支通畅。右侧胸腔可见积液，部分呈包裹性改变，较前增多。_x0004_两侧肋胸膜、纵隔胸膜不均匀增厚，并可见多发结节及肿块，较大者位于右心缘旁，边界不清，范围难以测量，密度不均匀，与心包膜、包裹性积液分界不清，增强呈明显不均匀强化；另见右前肋胸膜病灶累及右侧第3前肋骨质，范围较前增大。_x0004_右侧第8后肋骨骨质破坏，周围见不规则软组织肿块，范围约53MM×47MM，增强扫描呈不均匀强化，向外侵犯背部右侧竖脊肌，向内侵犯胸膜，范围较前增大。_x0004_肝脏形态正常，外形轮廓光整，密度均匀，增强扫描未见异常强化表现。胆囊大小正常，未见结石。肝内胆管及胆总管未见扩张。肝门区结构未见异常。门静脉主干及分支未见充盈缺损。脾、胰腺大小、形态正常，密度均匀。两肾、两肾下腺未见明确异常。膈脚后、腹主动脉旁未见肿大淋巴结。_x0004_膀胱充盈可，境界清楚，膀胱壁未见增厚。子宫萎小，密度及强化未见异常，宫腔未见扩张，子宫颈未见明确异常。两侧附件区未见软组织肿块。直肠未见明确异常。两侧髂血管旁、腹股沟未见肿大淋巴结。两侧会阴部各见一囊性灶，长径约22MM、25MM，边界欠清，平扫呈高密度，增强后未见明显强化。_x0004_余扫描范围内骨质结构未见破坏征象。</t>
+  </si>
+  <si>
+    <t>直肠癌术后:1、肠道未见复发征象。2、右肺下叶尖后段结节，伴高代谢，考虑为恶性病变可能大（肺癌？）。两肺多发小结节，未见高代谢，性质待定；左肺下叶及右肺上叶支气管扩张伴周围炎症；两肺气肿伴肺大疱；两肺陈旧病变。3、甲状腺右叶增大伴弥漫高代谢，建议B超检查除外恶性。右锁骨区多发小淋巴结，未见高代谢，性质待定，建议结合右叶甲状腺病变情况并随访。4、脑部未见明显异常代谢征象；鼻中隔偏曲；肝囊肿；副脾；右肾囊肿；左侧睾丸鞘膜积液；T5、骶骨骨岛。空腹6小时以下，静脉注射显像剂，平静休息60MMin后行全身PET及CT断层显像，PET图像经衰减校正及重建后，将PET及CT图像行多平面、多幅显示：直肠癌内镜上切除术后：直肠及余肠道未见异常浓聚灶。直肠周围、腹盆腔内、腹膜后、两侧腹股沟区未见明显肿大及异常浓聚淋巴结。腹水征阴性。右肺下叶尖后段可见一不规则软组织密度结节，边缘可见短毛刺，大小约2.4CM×1.6CM，伴放射性浓聚，SUVmax5.6，其内密度不均。左肺下叶及右肺上叶支气管扩张，部分呈囊状，边缘可见多发片状高密度影及小结节，部分放射性分布轻度增高，SUVmax1.8。余两肺可见多发软组织密度小结节，未见明显放射性浓聚。左肺中叶内侧段可见钙化结节。两肺可见多发索条。两肺可见多发囊状薄壁及无壁透亮区，以左肺中叶及右肺上叶胸膜上为著，较大者直径约3.6CM。纵隔及两肺门未见肿大及异常浓聚淋巴结。两侧胸膜无增厚，胸水征阴性。甲状腺右叶增大，其内密度不均，伴弥漫放射性浓聚；甲状腺左叶不大，放射性分布未见明显增高。右锁骨区见多发小淋巴结，较大者约0.9CM×0.6CM，未见放射性浓聚；两颈部及左锁骨下区未见明显异常淋巴结浓聚。大脑形态如常，皮层各叶放射性分布均匀。皮层上各神经核团显影清晰，放射性分布对称。同机CT显示大脑灰质沟回未见明显增宽加深，白质未见明显低密度影，中线无移位。脑室无扩大，基底节区显示对称。小脑显影如常，双侧小脑对称。口咽部双侧腺体显影对称，鼻咽部无异常放射性浓聚。鼻中隔向左偏曲。心肌显影清晰。上腔静脉走行区未见异常浓聚灶。胃充盈好，胃壁显影如常。肝脏形态可，轮廓光整，肝叶比例正常，肝左叶被膜上可见一小囊状低密度灶，放射性分布未见增高；肝实质内放射性分布稍欠均匀。肝内外胆管无扩张。胆囊大小正常，密度均匀，胆囊壁无增厚。胰腺形态放射性分布尚好，胰管不扩张。脾脏轻度显影，放射性分布均匀。脾门及脾脏前外侧见副脾。双侧肾脏显影可，右肾中极可见一囊状水样密度灶，直径约1.3CM，放射性分布呈稀疏区；余两肾实质密度均匀，肾盂、肾盏及输尿管无扩张。双侧肾下腺显影大致正常。腹部可见条索状肠影。膀胱放射性浓聚如常，膀胱壁无增厚。前列腺大小正常，放射性分布大致正常。左侧睾丸鞘膜内可见液体密度灶，放射性分布呈稀疏区。T5、骶骨可见致密结节；余视野内轴心骨未见异常放射性浓聚。视野内皮肤及软组织内未见异常放射性摄取。</t>
+  </si>
+  <si>
+    <t>None右上肺癌并转移免疫治疗后复查，对比2017-9-29片：_x0004_右肺上叶肿物，大小约65MM×48MM，周围阻塞炎症，大致同前。_x0004_左肺下叶小结节灶，增殖灶可能性大，较前未见明显变化。_x0004_右肺下叶舌段、左肺中叶斑片灶，考虑炎症，较前未见明显变化。_x0004_右胸腔少量积液，较前相仿。_x0004_纵隔隆突上、右肺门淋巴结肿大，考虑转移，大的短径约20MM，部分较前稍增大。_x0004_纵隔、两腋窝小淋巴结，考虑反应性淋巴结，较前无明显变化。_x0004_肝S8、S5结节，直径分别约28MM、23MM，呈不均匀明显强化，考虑转移瘤。_x0004_肝多发小囊肿。左肾小囊肿。前列腺钙化。_x0004_多个胸腰椎椎体致密灶，考虑许莫氏结节，大致同前。_x0004_盆腔未见占位性病变。</t>
   </si>
   <si>
     <t>纵隔隆突上,右肺门淋巴结,肝S8,S5</t>
@@ -5672,7 +5672,7 @@
     <t>肝左叶,胸骨,颈胸腰椎</t>
   </si>
   <si>
-    <t>右上肺癌并转移免疫治疗后复查，对比2017-05-31片：右肺上叶肿物，范围较前稍缩小；周围阻塞炎症，较前略有吸收。左肺下叶小结节灶，增殖灶可能性大，较前未见明显变化。右肺下叶舌段、左肺中叶斑片灶，考虑炎症，部分较前吸收减少。右胸腔少量积液，较前相仿。纵隔隆突上、右肺门淋巴结肿大，考虑转移，部分较前稍缩小。纵隔、两腋窝小淋巴结，考虑反应性淋巴结，较前无明显变化。肝多发小囊肿。左肾小囊肿。前列腺钙化。多个胸腰椎椎体致密灶，考虑许莫氏结节，大致同前。右上肺癌并转移免疫治疗后复查，对比2017-05-31片：右肺上叶外后基底段见一软组织肿块，边缘不光整，大小约为62MM×42MM，呈分叶状，边缘见毛刺，平扫密度不均匀，未见空洞及钙化灶，增强扫描不均匀明显强化，侵犯邻近胸膜，较前稍缩小。病灶周围见斑片状灶，边界不清楚，范围较前稍缩小。左肺下叶尖段见小结节（se11，im73），边界清，直径约2MM，较前相仿。右肺下叶舌段、左肺中叶见少许斑片状密度增高灶，边缘模糊，部分较前吸收减少。右肺上叶段支气管变窄，气管及左侧支气管分支通畅。气管隆突上及右肺门见多个淋巴结，密度不均，较大者短径约18MM，不均匀强化，部分较前稍缩小。两上气管旁、主肺动脉窗、主动脉弓旁及两腋窝见多个小淋巴结，边界清，较大者短径约7MM，较前未见明显变化。右侧胸腔见少量液性密度灶，较前相仿，左侧胸腔未见积液，左侧胸膜未见增厚。肝脏形态正常，轮廓光整，肝内见多个小类圆形低密度灶，直径约5MM，未见强化。肝内胆管未见异常，其内未见结石。胆囊大小、形态正常，胆总管未见扩张，其内未见结石。肝门区未见异常。门静脉所见未见异常。脾、胰腺大小、形态未见异常，密度均匀。左肾见一类圆形低密度灶，边界清，直径约4MM，未见强化。两侧肾下腺及右肾未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。精囊大小、形态未见异常，密度均匀，膀胱精囊角存在。前列腺大小、形态未见异常，见斑点状致密灶。腹主动脉旁、两侧髂血管旁、腹股沟未见肿大淋巴结。多个胸腰椎椎体见半环形致密影，边界清，边缘硬化，较前未见明显变化。</t>
+    <t>右上肺癌并转移免疫治疗后复查，对比2017-05-31片：_x0004_右肺上叶肿物，范围较前稍缩小；周围阻塞炎症，较前略有吸收。_x0004_左肺下叶小结节灶，增殖灶可能性大，较前未见明显变化。_x0004_右肺下叶舌段、左肺中叶斑片灶，考虑炎症，部分较前吸收减少。_x0004_右胸腔少量积液，较前相仿。_x0004_纵隔隆突上、右肺门淋巴结肿大，考虑转移，部分较前稍缩小。_x0004_纵隔、两腋窝小淋巴结，考虑反应性淋巴结，较前无明显变化。_x0004_肝多发小囊肿。左肾小囊肿。前列腺钙化。_x0004_多个胸腰椎椎体致密灶，考虑许莫氏结节，大致同前。右上肺癌并转移免疫治疗后复查，对比2017-05-31片：_x0004_右肺上叶外后基底段见一软组织肿块，边缘不光整，大小约为62MM×42MM，呈分叶状，边缘见毛刺，平扫密度不均匀，未见空洞及钙化灶，增强扫描不均匀明显强化，侵犯邻近胸膜，较前稍缩小。病灶周围见斑片状灶，边界不清楚，范围较前稍缩小。左肺下叶尖段见小结节（se11,im73），边界清，直径约2MM，较前相仿。右肺下叶舌段、左肺中叶见少许斑片状密度增高灶，边缘模糊，部分较前吸收减少。_x0004_右肺上叶段支气管变窄，气管及左侧支气管分支通畅。气管隆突上及右肺门见多个淋巴结，密度不均，较大者短径约18MM，不均匀强化，部分较前稍缩小。两上气管旁、主肺动脉窗、主动脉弓旁及两腋窝见多个小淋巴结，边界清，较大者短径约7MM，较前未见明显变化。右侧胸腔见少量液性密度灶，较前相仿，左侧胸腔未见积液，左侧胸膜未见增厚。_x0004_肝脏形态正常，轮廓光整，肝内见多个小类圆形低密度灶，直径约5MM，未见强化。肝内胆管未见异常，其内未见结石。胆囊大小、形态正常，胆总管未见扩张，其内未见结石。肝门区未见异常。门静脉所见未见异常。脾、胰腺大小、形态未见异常，密度均匀。左肾见一类圆形低密度灶，边界清，直径约4MM，未见强化。两侧肾下腺及右肾未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。_x0004_膀胱充盈良好，境界清楚。精囊大小、形态未见异常，密度均匀，膀胱精囊角存在。前列腺大小、形态未见异常，见斑点状致密灶。腹主动脉旁、两侧髂血管旁、腹股沟未见肿大淋巴结。_x0004_多个胸腰椎椎体见半环形致密影，边界清，边缘硬化，较前未见明显变化。</t>
   </si>
   <si>
     <t>62MM×42MM</t>
@@ -5696,7 +5696,7 @@
     <t>乳腺癌综合治疗后化疗后复查：左侧乳腺内侧小结节，较前变化不明显。左肺上叶近肺门区病变，较前变化不明显。左侧胸腔少量积液，较前稍减少。左肺下叶片状病变，范围较前稍缩小。肝脏多发转移瘤，较前缩小，部分病灶已显示不清。胸腰椎椎体多发稍高密度灶，较前变化不明显，考虑骨转移瘤可能性大。乳腺癌综合治疗后化疗后复查，与2015-4-9片对比：右侧乳腺术后缺失，右侧胸壁未见异常密度灶。左侧乳腺内侧缘见一小结节，直径约4MM，较前变化不明显。左侧腋窝见数个小淋巴结，较大者约8MM×8MM，大致同前。两侧锁骨下区及右侧腋窝未见肿大淋巴结。左肺上叶近肺门区软组织增多，边界不清，准确范围难以测量，病灶范围较前变化不明显。左肺下叶近水平裂见片状稍高密度病灶，边界不清，范围较前稍缩小。右肺下叶前段见片状稍高密度灶，边界清，较前未见明显变化。气管及支气管分支通畅，未见明显软组织肿物或受压变窄。两侧肺门及纵隔未见明确肿大淋巴结。左侧胸腔见少量积液，较前减少。右侧胸腔未见积液，两侧胸膜未见增厚。肝脏各叶比例在正常范围以内，其外形轮廓光整，肝内见弥漫分布低密度病灶，边界不清，周围见不均匀轻度环形强化，最大者直径约9MM，大部分较前缩小，部分病灶已显示不清。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾稍大，密度均匀。胰腺大小、形态正常，密度均匀。两侧肾下腺未见异常。扫描范围胸腰椎椎体见多发边界不清的稍高密度灶，局部骨小梁模糊，较前未见明显变化。</t>
   </si>
   <si>
-    <t>右肺癌化疗后，对比2016-5-11CT：右肺上叶背段肺门旁软组织灶，较前缩小；右肺上叶胸膜上片状稍高密度灶，范围大致同前。纵隔及右肺门淋巴结转移，较前缩小。两肺下叶、左肺中叶、两肺上叶慢性炎症，伴纤维增殖灶形成，大致同前。两肺肺气肿。肝囊肿。两肾囊肿。右肺癌化疗后，对比2016-5-11CT：右肺上叶背段肺门旁见斑片状软组织灶，边界不清，形态不规则，与右侧肺门旁及隆突上肿大淋巴结分界不清，较大层面范围约18MM×14MM，增强扫描较明显强化，较前缩小。肿块远端右肺上叶背段胸膜上见不规则片状高密度灶，边界不清，密度不均匀，内见不规则空洞形成，范围约27MM×43MM，增强扫描轻中度不均匀强化，大致同前。两肺下叶、左肺中叶、两肺上叶外基底段尚可见多发斑片状、条索状及类结节灶，边界欠清。两肺纹理稀疏，见多发小类圆形透亮区。右肺上叶背段支气管腔稍狭窄，气管及余支气管分支通畅。右上气管旁、主肺动脉窗、隆突上、右肺门见多个肿大淋巴结，部分相互融合，较大者短径约22MM，增强扫描明显强化，较前缩小。血管前、左上气管旁见数个小淋巴结，较大者短径约6MM。左肺门、两侧腋窝未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝实质见数个小类圆形低密度病变，边界清晰，较大者大小约12MM×8MM，增强扫描未见强化。肝内胆管正常，其内未见结石，胆囊大小正常，其内未见结石，胆总管未见扩张，其内未见结石影。肝门区结构未见异常。门静脉未见充盈缺损。脾及胰腺大小、形态正常，密度均匀。两肾实质见数个小类圆形低密度病灶，边界清晰，较大者直径约4MM，增强扫描未见强化。两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围内骨质未见明显破坏。</t>
+    <t>右肺癌化疗后，对比2016-5-11CT：_x0004_右肺上叶背段肺门旁软组织灶，较前缩小；_x0004_右肺上叶胸膜上片状稍高密度灶，范围大致同前。_x0004_纵隔及右肺门淋巴结转移，较前缩小。_x0004_两肺下叶、左肺中叶、两肺上叶慢性炎症，伴纤维增殖灶形成，大致同前。_x0004_两肺肺气肿。_x0004_肝囊肿。_x0004_两肾囊肿。右肺癌化疗后，对比2016-5-11CT：_x0004_右肺上叶背段肺门旁见斑片状软组织灶，边界不清，形态不规则，与右侧肺门旁及隆突上肿大淋巴结分界不清，较大层面范围约18MM×14MM，增强扫描较明显强化，较前缩小。肿块远端右肺上叶背段胸膜上见不规则片状高密度灶，边界不清，密度不均匀，内见不规则空洞形成，范围约27MM×43MM，增强扫描轻中度不均匀强化，大致同前。_x0004_两肺下叶、左肺中叶、两肺上叶外基底段尚可见多发斑片状、条索状及类结节灶，边界欠清。两肺纹理稀疏，见多发小类圆形透亮区。_x0004_右肺上叶背段支气管腔稍狭窄，气管及余支气管分支通畅。_x0004_右上气管旁、主肺动脉窗、隆突上、右肺门见多个肿大淋巴结，部分相互融合，较大者短径约22MM，增强扫描明显强化，较前缩小。血管前、左上气管旁见数个小淋巴结，较大者短径约6MM。左肺门、两侧腋窝未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜粘连。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝实质见数个小类圆形低密度病变，边界清晰，较大者大小约12MM×8MM，增强扫描未见强化。肝内胆管正常，其内未见结石，胆囊大小正常，其内未见结石，胆总管未见扩张，其内未见结石影。_x0004_肝门区结构未见异常。门静脉未见充盈缺损。脾及胰腺大小、形态正常，密度均匀。两肾实质见数个小类圆形低密度病灶，边界清晰，较大者直径约4MM，增强扫描未见强化。两肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_扫描范围内骨质未见明显破坏。</t>
   </si>
   <si>
     <t>左乳下象限非肿块样强化，BI-RADS6。两乳多发强化结节，追查。左侧腋上多发淋巴结，追查。两乳呈多量腺体型，两乳见多发结节状背景强化，约3-5MM，呈流入型时间信号强度曲线。左乳下象限可见非肿块样强化，范围约65MM×51MM（SE602IM114），边缘模糊，动脉早期病灶明显强化，呈平台/流入型时间信号强度曲线。肿块周围多发强化结节，较大者位于左乳内上及外上象限，边缘模糊，分别约8MM×6MM、9MM×8MM（SE602IM104、120），呈流入/平台型时间信号强度曲线，左乳头未见凹陷，右乳皮肤未见增厚。右乳多发强化结节，较大位于外象限及上象限，分别约6MM×4MM、7MM×6MM（SE602IM28、34），呈流入型时间信号强度曲线。右乳皮肤未见增厚，右侧乳头未见凹陷。左侧腋上见多发淋巴结，较大约16MM×11MM（SE602IM116）；右侧腋窝及两内乳区未见肿大淋巴结。</t>
@@ -5711,10 +5711,10 @@
     <t>左上肺癌术后化疗后改变，术区未见明确复发征象；左残肺散在斑片及索条，考虑纤维增殖灶，较前相仿；右上肺背段小类结节，右侧斜裂多发小结节，较前未见明显变化；右下肺舌段斑片灶，考虑慢性炎症，较前相仿；左侧胸膜轻度增厚，左侧胸腔少量积液，较前相仿；肝内多发囊肿；右肾小囊肿。左上肺癌术后化疗后，与2015-05-14日片对比：左肺上叶术后缺失，左肺上叶支气管残端见线样致密影，局部未见明确软组织肿块。左残肺见少许斑片灶、条索病灶，与胸膜粘连，较前相仿。右下肺舌段见散在斑片灶，边界欠清，增强后明显强化，较前相仿。右上肺背段见一小结节，短径约3MM，边界清，较前变化不明显。右侧斜裂见多发小结节，较前无大变化。纵隔稍向左偏移，两肺门及纵隔未见明显肿大淋巴结。左侧少量胸腔积液、胸膜稍增厚，较前相仿，右侧未见胸腔积液及胸膜增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝内见多发类圆形低密灶，边界清，最大者直径约13MM，边界清，增强扫描未见强化，大致同前。胆囊大小正常，其内未见结石，肝内胆管、胆总管未见扩张，其内未见结石。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见小低密灶，边界清，短径约3MM，增强扫描未见强化，左肾所见正常。两肾下腺所见正常。腹腔干、腹主动脉旁未见明显肿大淋巴结。左侧第4、5前肋局部骨皮质稍扭曲，未见明显异常软组织影，较前相仿。</t>
   </si>
   <si>
-    <t>右乳癌根治术后、右肺腺癌靶向治疗后复查，对比2017.05.31片：右乳癌术后改变，局部未见肿瘤复发征象。左乳多发良性钙化灶，较前相仿。右肺下叶斑片灶，较前未见明显变化。左肺下叶前段、左侧斜裂斑片灶，考虑增殖灶可能性大，大致同前。右锁下小淋巴结，较前相仿。肝S7胆管结石。肝S4小囊肿。肝S7包膜上结节，考虑血管平滑肌脂肪瘤可能性大。左侧第7肋骨腋段髓腔密度局限性增高，较前相仿。骨质疏松。右乳癌根治术后、右肺腺癌靶向治疗后复查，对比2017.05.31片：右侧乳腺缺如，右前胸壁皮肤稍增厚同前，未见明确结节、肿物影。左乳大小、形态正常，内见散在点状钙化灶，较大直径约2MM，未见明确结节肿物影。两侧腋窝及两侧内乳区未见明确肿大淋巴结。右肺下叶舌段见一不规则软组织灶，大小约8MM×11MM，边界不清，边缘见分叶及长短毛刺，牵拉邻近胸膜，密度欠均匀，未见坏死及钙化，增强后可见强化，较前未见明显变化；病灶远端见少许条索及斑片状模糊影，范围较前相仿。右肺下叶下舌段支气管延伸入内，远端截断。左肺下叶前段、中叶、上叶侧斜裂旁见小斑片灶，较大者约5MM×4MM，边界尚清，大致同前。余两肺清晰，未见明确结节影。气管及余支气管分枝通畅。右锁下小淋巴结大致同前，最大者短径约4MM；纵隔内及两肺门未见明确肿大淋巴结。两侧胸腔未见积液。胸膜未见增厚。肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，肝S7见一点状致密灶，直径约2MM。肝S4见小囊性灶，较大直径约4MM，边界清晰，未见强化。肝S6包膜上见一脂肪密度结节，大小约10MM×9MM，增强扫描强化不明显，病灶内见小血管穿行。肝内胆管、胆总管未见扩张，内未见结石。胆囊未见异常。肝门区及门静脉未见异常。脾大小形态未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾、两肾下腺未见异常。腹主动脉旁未见肿大淋巴结。左侧第7肋骨腋段髓腔密度局限性增高，扫描所见骨质呈骨质疏松改变，未见明确骨质破坏。</t>
-  </si>
-  <si>
-    <t>肺癌化疗后，左侧大量液气胸。左中上肺不张。左肺下叶局限性肺不张。左肺下叶残余含气肺组织内条片灶，考虑治疗后改变可能性大，建议复查。右肺下叶尖后段结节，转移待排，建议复查。左侧胸膜弥漫性增厚并强化，考虑转移。右肺胸膜上散在小结节，考虑增殖灶。左侧锁骨下区、纵隔、左肺门淋巴结，考虑转移可能。肝散在囊肿。肺癌化疗后，左侧胸腔见大片状无肺纹理区及被压缩的胸膜线影，并可见一宽大气液平面。左肺中上叶受压、萎陷，左肺下叶大部受压、萎陷，残余含气肺组织内见条片状密度增高影，边界欠清，增强扫描见强化。左侧胸膜弥漫性增厚并强化，最厚处约12MM。右肺下叶尖后段见一结节，直径约7MM，增强扫描似有轻度强化。右肺下叶前段、右肺上叶外基底段胸膜上各见一类结节灶，边界清，直径约2MM。右肺上叶见一类圆形薄壁无肺纹理区。气管及余支气管分支未见明显狭窄及异常扩张。左侧锁骨下区、左下、上气管旁、血管前、隆突上、左肺门见多个肿大淋巴结，短径约10MM，边界不清，密度略不均匀，增强扫描不均匀强化。右侧胸腔未见积液。右侧胸膜无增厚、粘连。肝脏轮廓未见明显异常，各叶比例在正常范围以内，其外形光整，密度不均匀，肝内见多个散在类圆形低密度灶，大者直径约15MM，边界清，无强化。肝内胆管未见明显异常，胆囊未见明显扩张，胆总管未扩张。肝门区未见明显异常。门静脉未见明显异常。脾大小未见明显异常，密度均匀。胰腺大小、形态未见明显异常，密度均匀。两肾未见明显异常。两肾下腺未见明显异常。腹腔干、腹主动脉旁、肠系膜根部未见肿大淋巴结。扫描范围内骨质结构未见破坏征象。</t>
+    <t>右乳癌根治术后、右肺腺癌靶向治疗后复查，对比2017.05.31片：_x0004_右乳癌术后改变，局部未见肿瘤复发征象。_x0004_左乳多发良性钙化灶，较前相仿。_x0004_右肺下叶斑片灶，较前未见明显变化。_x0004_左肺下叶前段、左侧斜裂斑片灶，考虑增殖灶可能性大，大致同前。_x0004_右锁下小淋巴结，较前相仿。_x0004_肝S7胆管结石。肝S4小囊肿。肝S7包膜上结节，考虑血管平滑肌脂肪瘤可能性大。左侧第7肋骨腋段髓腔密度局限性增高，较前相仿。骨质疏松。右乳癌根治术后、右肺腺癌靶向治疗后复查，对比2017.05.31片：_x0004_右侧乳腺缺如，右前胸壁皮肤稍增厚同前，未见明确结节、肿物影。_x0004_左乳大小、形态正常，内见散在点状钙化灶，较大直径约2MM，未见明确结节肿物影。_x0004_两侧腋窝及两侧内乳区未见明确肿大淋巴结。_x0004_右肺下叶舌段见一不规则软组织灶，大小约8MM×11MM，边界不清，边缘见分叶及长短毛刺，牵拉邻近胸膜，密度欠均匀，未见坏死及钙化，增强后可见强化，较前未见明显变化；病灶远端见少许条索及斑片状模糊影，范围较前相仿。右肺下叶下舌段支气管延伸入内，远端截断。左肺下叶前段、中叶、上叶侧斜裂旁见小斑片灶，较大者约5MM×4MM，边界尚清，大致同前。余两肺清晰，未见明确结节影。气管及余支气管分枝通畅。右锁下小淋巴结大致同前，最大者短径约4MM；纵隔内及两肺门未见明确肿大淋巴结。两侧胸腔未见积液。胸膜未见增厚。_x0004_肝脏形态未见异常，各叶比例在正常范围以内，其外形轮廓光整，肝S7见一点状致密灶，直径约2MM。肝S4见小囊性灶，较大直径约4MM，边界清晰，未见强化。肝S6包膜上见一脂肪密度结节，大小约10MM×9MM，增强扫描强化不明显，病灶内见小血管穿行。肝内胆管、胆总管未见扩张，内未见结石。胆囊未见异常。肝门区及门静脉未见异常。脾大小形态未见异常，密度均匀。胰腺大小、形态未见异常，密度均匀。_x0004_两肾、两肾下腺未见异常。腹主动脉旁未见肿大淋巴结。_x0004_左侧第7肋骨腋段髓腔密度局限性增高，扫描所见骨质呈骨质疏松改变，未见明确骨质破坏。</t>
+  </si>
+  <si>
+    <t>肺癌化疗后，左侧大量液气胸。_x0004_左中上肺不张。左肺下叶局限性肺不张。_x0004_左肺下叶残余含气肺组织内条片灶，考虑治疗后改变可能性大，建议复查。_x0004_右肺下叶尖后段结节，转移待排，建议复查。_x0004_左侧胸膜弥漫性增厚并强化，考虑转移。_x0004_右肺胸膜上散在小结节，考虑增殖灶。_x0004_左侧锁骨下区、纵隔、左肺门淋巴结，考虑转移可能。_x0004_肝散在囊肿。肺癌化疗后，左侧胸腔见大片状无肺纹理区及被压缩的胸膜线影，并可见一宽大气液平面。左肺中上叶受压、萎陷，左肺下叶大部受压、萎陷，残余含气肺组织内见条片状密度增高影，边界欠清，增强扫描见强化。左侧胸膜弥漫性增厚并强化，最厚处约12MM。右肺下叶尖后段见一结节，直径约7MM，增强扫描似有轻度强化。右肺下叶前段、右肺上叶外基底段胸膜上各见一类结节灶，边界清，直径约2MM。右肺上叶见一类圆形薄壁无肺纹理区。_x0004_气管及余支气管分支未见明显狭窄及异常扩张。_x0004_左侧锁骨下区、左下、上气管旁、血管前、隆突上、左肺门见多个肿大淋巴结，短径约10MM，边界不清，密度略不均匀，增强扫描不均匀强化。_x0004_右侧胸腔未见积液。右侧胸膜无增厚、粘连。_x0004_肝脏轮廓未见明显异常，各叶比例在正常范围以内，其外形光整，密度不均匀，肝内见多个散在类圆形低密度灶，大者直径约15MM，边界清，无强化。肝内胆管未见明显异常，胆囊未见明显扩张，胆总管未扩张。肝门区未见明显异常。门静脉未见明显异常。脾大小未见明显异常，密度均匀。胰腺大小、形态未见明显异常，密度均匀。两肾未见明显异常。两肾下腺未见明显异常。腹腔干、腹主动脉旁、肠系膜根部未见肿大淋巴结。_x0004_扫描范围内骨质结构未见破坏征象。</t>
   </si>
   <si>
     <t>右肺下叶尖后段,左侧胸膜,左侧锁骨下区,纵隔,左肺门淋巴结</t>
@@ -5729,7 +5729,7 @@
     <t>纵隔多发肿大淋巴结</t>
   </si>
   <si>
-    <t>右肺癌综合治疗后，与2016-06-13片对比：右下肺支气管残端未见明确肿物；残余右肺少许纤维增殖灶，大致同前。左肺数个小类结节灶，较前变化不大。右锁下、纵隔数个淋巴结，较前变化不大。右侧胸腔少量积液，右侧胸膜稍增厚，大致同前。甲状腺右叶病灶，考虑结节性甲状腺肿，大致同前。肝S2小囊肿。胆囊小结石。右肾小囊肿。胃右血管旁及左侧膈脚后数个小淋巴结，大致同前。右肺癌综合治疗后，与2016-06-13片对比：右肺下叶术后缺失，右下肺支气管残端未见明确肿物。右肺上叶见少许纤维条索，边界清晰，未见明确结节影，大致同前。左肺见数个小类结节影，较大者直径约3MM，边界欠清，较前未见明显变化；左上肺外侧基底段小斑片影，大致同前。气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。右侧锁骨下、血管前、左下上气管旁见多个淋巴结，最大者短径约12MM，边界不清，密度欠均匀，增强后见明显强化，较前未见明显变化。右侧胸腔见少量积液同前。左侧胸腔未见积液。右上胸膜稍增厚，大致同前。扫描所见甲状腺右侧叶可见2个结节，较大者约14MM×12MM，边界清晰，未见强化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S2见一小囊性灶，直径约为3MM，边界清楚，增强后未见强化，肝内未见异常密度影及强化灶。肝内胆管正常，其内未见结石影，胆囊大小正常，胆囊底部内见小结石影，胆总管未见扩张，其内未见结石影。肝门区正常；门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见一囊性灶，大小约7MM×4MM，边界清晰，增强扫描未见强化，左肾所见正常。两肾下腺未见异常。胃右血管旁及左侧膈脚后见小淋巴结，最大约7MM×6MM，边界清，增强后轻度强化。腹主动脉旁未见肿大淋巴结。扫描层面中胸椎、腰椎、肋骨未见明确骨质破坏征象。</t>
+    <t>右肺癌综合治疗后，与2016-06-13片对比：_x0004_右下肺支气管残端未见明确肿物；残余右肺少许纤维增殖灶，大致同前。_x0004_左肺数个小类结节灶，较前变化不大。_x0004_右锁下、纵隔数个淋巴结，较前变化不大。_x0004_右侧胸腔少量积液，右侧胸膜稍增厚，大致同前。_x0004_甲状腺右叶病灶，考虑结节性甲状腺肿，大致同前。_x0004_肝S2小囊肿。胆囊小结石。右肾小囊肿。_x0004_胃右血管旁及左侧膈脚后数个小淋巴结，大致同前。右肺癌综合治疗后，与2016-06-13片对比：_x0004_右肺下叶术后缺失，右下肺支气管残端未见明确肿物。右肺上叶见少许纤维条索，边界清晰，未见明确结节影，大致同前。左肺见数个小类结节影，较大者直径约3MM，边界欠清，较前未见明显变化；左上肺外侧基底段小斑片影，大致同前。_x0004_气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。_x0004_右侧锁骨下、血管前、左下上气管旁见多个淋巴结，最大者短径约12MM，边界不清，密度欠均匀，增强后见明显强化，较前未见明显变化。_x0004_右侧胸腔见少量积液同前。左侧胸腔未见积液。右上胸膜稍增厚，大致同前。_x0004_扫描所见甲状腺右侧叶可见2个结节，较大者约14MM×12MM，边界清晰，未见强化。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S2见一小囊性灶，直径约为3MM，边界清楚，增强后未见强化，肝内未见异常密度影及强化灶。_x0004_肝内胆管正常，其内未见结石影，胆囊大小正常，胆囊底部内见小结石影，胆总管未见扩张，其内未见结石影。肝门区正常；门静脉未见异常。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。_x0004_右肾见一囊性灶，大小约7MM×4MM，边界清晰，增强扫描未见强化，左肾所见正常。_x0004_两肾下腺未见异常。_x0004_胃右血管旁及左侧膈脚后见小淋巴结，最大约7MM×6MM，边界清，增强后轻度强化。腹主动脉旁未见肿大淋巴结。_x0004_扫描层面中胸椎、腰椎、肋骨未见明确骨质破坏征象。</t>
   </si>
   <si>
     <t>左肺癌切除术后复查，与2014-6-19片对比：左肺术后改变，左中上肺少许索条及斑片灶，大致同前，考虑纤维增殖性病灶。两肺局限性肺气肿。左侧少量胸腔积液，大致同前。肝脏未见明确病变。两肾多发囊肿。左肺癌切除术后复查：左肺下叶缺如，残肺膨胀良好，左侧斜裂胸膜稍增厚，左中肺及左上肺见不规则条片影，边界欠清。右肺下叶、两肺上叶胸膜上见局限性类圆形透亮度增加区，大致同前，两肺未见明显结节影。气管、左中、上叶及右肺各叶支气管分枝通畅。两侧肺门及纵隔未见明确肿大淋巴结。左侧胸膜轻度增厚，左侧胸腔见少量积液，较前变化不大。右侧胸腔未见积液，右侧胸膜未见增厚。肝脏大小正常，各叶比例在正常范围以内，外形轮廓光整，密度均匀。肝内胆管未见扩张。胆囊大小正常，其内未见结石影。胆总管未见扩张，其内未见结石头影。肝门区未见异常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态及密度未见异常。两肾见数个囊性灶，最大者大小约11MM×9MM，边界清晰，密度均匀，未见强化。两肾动脉壁见散在钙化斑。两侧肾下腺所见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围未见明显骨质破坏。</t>
@@ -5738,10 +5738,10 @@
     <t>两侧颈部淋巴结甲状腺左叶35MM×14MM×11MM，甲状腺右叶35MM×15MM×11MM，峡部3MM。甲状腺内部回声均匀，甲状腺内血流分布正常。颈部左侧甲状腺下动脉血流通畅，PSV0.20MM/s，RI0.48。颈部右侧甲状腺下动脉血流通畅，PSV0.23MM/s，RI0.54。两侧颌上、两侧颈血管旁见数枚低回声区，左侧最大11MM×3MM，右侧最大11MM×3MM，CDFI未见明显彩色血流。两侧锁骨下未见明显肿块回声，CDFI未见异常血流。肝肋上斜切117MM/（－），剑上纵切55MM/2指，肝区回声较密尚均，门脉主干内径10MM。脾肋间切25MM/（－）。左肾103MM×43MM×48MM，肾盂分离（－），右肾90MM×46MM×47MM，肾盂分离（－）。两侧输尿管未见明显扩张。两侧肾下腺区未见明显肿块回声。CDFI肝肾血流正常。</t>
   </si>
   <si>
-    <t>右上肺癌术后、化疗后复查：术区未见明显肿瘤复发征象；左肺中叶和上叶少许纤维灶，较前变化不明显；多发肝囊肿，较前相仿；右肾上极结节，考虑血管平滑肌脂肪瘤可能性大，较前无明显变化；左肾囊肿；右侧肾下腺小结节，较前未见明显变化。右上肺癌术后、化疗后复查，与2013-1-10片对比：右上肺部分缺如，残肺含气良好，右上肺野见散在少许条索影，边清。左肺中叶和左上肺后基底段可见斑片状影，边缘欠清，较前无明显变化。气管及左肺、右下肺支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。右侧胸膜增厚，左侧胸膜无增厚、粘连。右侧胸壁骨呈术后改变。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。肝内见散在几个小圆形低密度灶，直径约3MM~6MM，边界清楚，增强扫描未见强化，较前未见明显变化。肝内外胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影。肝门区正常。肝静脉、门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾上极见一稍低密度影，大小9MM×10MM，边界尚清，其内可见小片状极低密度影，增强扫描不均匀强化，较前无明显变化。左肾实质内见散在多个类圆形低密度灶，最大者约27MM×29MM，边界清楚，增强扫描未见强化。右侧肾下腺见一结节，大小7MM×11MM，密度欠均匀，增强轻度强化，较前未见明显变化；左侧肾下腺未见异常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。</t>
-  </si>
-  <si>
-    <t>右肺上叶肿物，考虑肺癌，周围少许阻塞炎症。左肺下叶小结节影，增殖灶可能性大。气管隆突上、右肺门淋巴结肿大，考虑转移。两腋窝小淋巴结，考虑良性淋巴结。肝囊肿。左肾囊肿。多个胸腰椎椎体环形致密影，考虑施莫氏结节。右肺上叶外基底段见一软组织肿块，边缘不光整，大小约为64MM×46MM，呈分叶状，边缘见毛刺，平扫密度不均匀，未见空洞及钙化灶，增强扫描不均匀明显强化，牵拉邻近胸膜。病灶周围见斑片、类结节影，边界欠清楚。左肺下叶尖段见小结节，边界清，直径约2MM。气管及支气管分支通畅，未见明显软组织肿物或受压变窄。气管隆突上及右肺门见多个淋巴结，密度不均，较大者短径约14MM，不均匀强化。气管旁、主肺动脉窗、主动脉弓旁及两腋窝见多个小淋巴结，边界清，较大者短径约7MM。两侧胸腔未见积液，左侧胸膜未见增厚。肝脏形态正常，轮廓光整，密度不均匀。肝内见多个小类圆形低密度影，直径约5MM，未见强化。肝内胆管未见异常，其内未见结石。胆囊大小、形态正常，胆总管未见扩张，其内未见结石。肝门区未见异常。门静脉所见未见异常。脾、胰腺大小、形态未见异常，密度均匀。左肾见一类圆形低密度影，边界清，直径约4MM，无强化。两侧肾下腺及右肾未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。多个胸腰椎椎体见环形致密影，边界清。</t>
+    <t>右上肺癌术后、化疗后复查：_x0004_术区未见明显肿瘤复发征象；_x0004_左肺中叶和上叶少许纤维灶，较前变化不明显；_x0004_多发肝囊肿，较前相仿；_x0004_右肾上极结节，考虑血管平滑肌脂肪瘤可能性大，较前无明显变化；_x0004_左肾囊肿；_x0004_右侧肾下腺小结节，较前未见明显变化。右上肺癌术后、化疗后复查，与2013-1-10片对比：_x0004_右上肺部分缺如，残肺含气良好，右上肺野见散在少许条索影，边清。左肺中叶和左上肺后基底段可见斑片状影，边缘欠清，较前无明显变化。_x0004_气管及左肺、右下肺支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。_x0004_两侧胸腔未见积液。右侧胸膜增厚，左侧胸膜无增厚、粘连。_x0004_右侧胸壁骨呈术后改变。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀。肝内见散在几个小圆形低密度灶，直径约3MM~6MM，边界清楚，增强扫描未见强化，较前未见明显变化。_x0004_肝内外胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影。_x0004_肝门区正常。肝静脉、门静脉未见异常。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。_x0004_右肾上极见一稍低密度影，大小9MM×10MM，边界尚清，其内可见小片状极低密度影，增强扫描不均匀强化，较前无明显变化。左肾实质内见散在多个类圆形低密度灶，最大者约27MM×29MM，边界清楚，增强扫描未见强化。_x0004_右侧肾下腺见一结节，大小7MM×11MM，密度欠均匀，增强轻度强化，较前未见明显变化；左侧肾下腺未见异常。_x0004_膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。</t>
+  </si>
+  <si>
+    <t>右肺上叶肿物，考虑肺癌，周围少许阻塞炎症。_x0004_左肺下叶小结节影，增殖灶可能性大。_x0004_气管隆突上、右肺门淋巴结肿大，考虑转移。_x0004_两腋窝小淋巴结，考虑良性淋巴结。_x0004_肝囊肿。左肾囊肿。_x0004_多个胸腰椎椎体环形致密影，考虑施莫氏结节。右肺上叶外基底段见一软组织肿块，边缘不光整，大小约为64MM×46MM，呈分叶状，边缘见毛刺，平扫密度不均匀，未见空洞及钙化灶，增强扫描不均匀明显强化，牵拉邻近胸膜。病灶周围见斑片、类结节影，边界欠清楚。左肺下叶尖段见小结节，边界清，直径约2MM。_x0004_气管及支气管分支通畅，未见明显软组织肿物或受压变窄。_x0004_气管隆突上及右肺门见多个淋巴结，密度不均，较大者短径约14MM，不均匀强化。气管旁、主肺动脉窗、主动脉弓旁及两腋窝见多个小淋巴结，边界清，较大者短径约7MM。_x0004_两侧胸腔未见积液，左侧胸膜未见增厚。_x0004_肝脏形态正常，轮廓光整，密度不均匀。肝内见多个小类圆形低密度影，直径约5MM，未见强化。肝内胆管未见异常，其内未见结石。胆囊大小、形态正常，胆总管未见扩张，其内未见结石。肝门区未见异常。门静脉所见未见异常。_x0004_脾、胰腺大小、形态未见异常，密度均匀。_x0004_左肾见一类圆形低密度影，边界清，直径约4MM，无强化。两侧肾下腺及右肾未见异常。_x0004_膈脚后、腹主动脉旁未见肿大淋巴结。_x0004_多个胸腰椎椎体见环形致密影，边界清。</t>
   </si>
   <si>
     <t>右肺上叶外基底段</t>
@@ -5765,7 +5765,7 @@
     <t>肝胆胰肾输尿管肾下腺两侧颈部未见占位肝肋上斜切118MM/（－），剑上纵切60MM/2指，肝区回声较密尚均，门脉主干内径10MM，左支内径7MM，流速0.23MM/s，主干及右左支血流通畅，为向肝血流，流速曲线正常，脾门处脾静脉内径5MM，血流通畅。肝静脉血流通畅。脾肋间切30MM/（－）。胆囊50MM×14MM，胆总管5MM。胰头15MM，胰体14MM，胰尾14MM。左肾83MM×40MM×41MM，肾盂分离（－），右肾105×50×52，肾盂分离（－）。两侧输尿管未见明显扩张。两侧肾下腺区未见明显占位。CDFI示肝胆胰肾血流正常。两侧颌上、两侧颈血管旁及两侧锁骨下未见明显肿块回声。CDFI未见异常血流。</t>
   </si>
   <si>
-    <t>右下肺叶切除术后改变，支气管残端未见软组织影。左肺中叶小斑片灶，较前相仿，考虑增殖灶。右侧胸腔少量积液，较前减少，右下胸纵隔旁少量包裹性积液，较前稍缩小。甲状腺两叶结节，考虑结节性甲状腺肿可能性大。右侧腋上片絮灶，考虑术后改变，范围较前缩小。肝S5稍低密度灶，考虑血管瘤，较前相仿。肝囊肿。右下肺叶切除术后，对比2017-05-02片：右下肺叶缺如，右下肺支气管截断呈术后改变，支气管残端未见明确软组织影及异常强化灶。右上肺叶膨胀尚可，内见多发纤维条索条片灶。左肺中叶见小斑片灶，大小约4MM×7MM，形态欠规则，邻近胸膜受牵拉，较前变化不大。气管及余支气管分支通畅。两侧锁骨下区、两肺门及纵隔、两侧腋窝未见明显肿大淋巴结。右侧胸腔见少量游离性积液，较前减少，右下胸腔纵隔旁局部见包裹性积液。左侧胸腔未见积液。右侧胸膜轻度增厚、粘连。心包未见积液。扫描范围内甲状腺两叶见多个类结节灶，大者直径约11MM，边界清楚，不均匀强化。右侧腋上皮上脂肪间隙见片絮状密度增高影，边缘模糊，内见斑点状致密灶，与右侧前锯肌分界不清。肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，肝S6见数个低密度灶，大者约33MM×26MM，内无强化；肝S5见一小稍低密度灶，大小约7MM×5MM，增强扫描动脉期明显强化，门脉期及平衡期延迟强化。肝内胆管未见扩张，胆囊不大，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾及两肾下腺大小、形态未见异常，密度均匀。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。所见骨质未见破坏征象。</t>
+    <t>右下肺叶切除术后改变，支气管残端未见软组织影。_x0004_左肺中叶小斑片灶，较前相仿，考虑增殖灶。_x0004_右侧胸腔少量积液，较前减少，右下胸纵隔旁少量包裹性积液，较前稍缩小。_x0004_甲状腺两叶结节，考虑结节性甲状腺肿可能性大。_x0004_右侧腋上片絮灶，考虑术后改变，范围较前缩小。_x0004_肝S5稍低密度灶，考虑血管瘤，较前相仿。_x0004_肝囊肿。_x0004_右下肺叶切除术后，对比2017-05-02片：_x0004_右下肺叶缺如，右下肺支气管截断呈术后改变，支气管残端未见明确软组织影及异常强化灶。右上肺叶膨胀尚可，内见多发纤维条索条片灶。_x0004_左肺中叶见小斑片灶，大小约4MM×7MM，形态欠规则，邻近胸膜受牵拉，较前变化不大。_x0004_气管及余支气管分支通畅。两侧锁骨下区、两肺门及纵隔、两侧腋窝未见明显肿大淋巴结。右侧胸腔见少量游离性积液，较前减少，右下胸腔纵隔旁局部见包裹性积液。左侧胸腔未见积液。右侧胸膜轻度增厚、粘连。心包未见积液。_x0004_扫描范围内甲状腺两叶见多个类结节灶，大者直径约11MM，边界清楚，不均匀强化。_x0004_右侧腋上皮上脂肪间隙见片絮状密度增高影，边缘模糊，内见斑点状致密灶，与右侧前锯肌分界不清。_x0004_肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，肝S6见数个低密度灶，大者约33MM×26MM，内无强化；肝S5见一小稍低密度灶，大小约7MM×5MM，增强扫描动脉期明显强化，门脉期及平衡期延迟强化。肝内胆管未见扩张，胆囊不大，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾及两肾下腺大小、形态未见异常，密度均匀。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_所见骨质未见破坏征象。_x0004_</t>
   </si>
   <si>
     <t>左肺癌多发转移化疗后：左肺中叶肿物较前缩小。左侧胸壁、斜裂及水平裂结节，考虑肺癌胸膜转移，较前无明显改变。左侧胸腔少量积液。右上肺少许纤维条索。肝S6低密度灶，考虑囊肿。副脾。左肾小囊肿。腹膜后、左前膈角、纵隔多发小淋巴结。左肺癌多发转移化疗后复查：左肺中叶可见一不规则肿物影，边界欠清，大小约为21MM×32MM，密度尚均匀，可见分叶及毛刺，与水平裂及斜裂胸膜关系密切，可见牵拉，增强扫描后病灶可见强化，病灶外缘可见一长条致密灶。左侧胸壁胸膜、斜裂及水平裂胸膜可见多发结节增厚，最大结节约5MM×8MM，增强扫描后可见强化。右上肺可见少许条索影，余右肺未见实质性病变。左肺中叶支气管变窄，余气管及支气管分支通畅，未见明确肿物及受压变窄。左侧胸腔可见少量积液。左侧下上气管旁可见多个小淋巴结，最大短径约8MM，可见强化，两侧肺门未见肿大淋巴结。肝脏大小形态正常，各叶比例在正常范围内，轮廓光整，肝S6可见一点状低密度灶，短径约2MM，未见强化，余肝实质未见异常密度及强化灶。肝内外胆管未见扩张，胆囊不大，壁不厚，内未见结石影。肝门区正常，门静脉所见正常，脾脏不大，密度均匀，前缘可见一结节，短径约8MM，密度及强化方式与脾脏类似。胰腺大小形态及密度未见异常。左肾可见一类圆形囊性低密度灶，边界清，短径约3MM，未见强化，右肾及两侧肾下腺区未见异常。腹膜后、左前膈角可见多个小淋巴结，最大短径约6MM，孤立散在，可见强化。</t>
@@ -5774,13 +5774,13 @@
     <t>左侧胸壁,斜裂及水平裂,胸膜</t>
   </si>
   <si>
-    <t>心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号右室舒张功能减低，收缩功能正常心超声检测值：LA   25MM       AO     25MM        MV E 0.50MM/s     EF 74%LV   44MM       IVS    8MM            A 0.76MM/s     FS 42% RA   23MM       LVPW   7MMRV   16MM       PA     17MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图未见异常。</t>
+    <t>心脏结构及运动未见异常_x0004__x0004_各房室腔及大血管未探及异常血流信号_x0004__x0004_右室舒张功能减低，收缩功能正常心超声检测值：_x0004__x0004_LA   25MMAO     25MMV E 0.50MM/s     EF 74%_x0004__x0004_LV   44MMIVS    8MMA 0.76m/s     FS 42% _x0004__x0004_RA   23MMLVPW   7MM_x0004__x0004_RV   16MMPA     17MM_x0004__x0004__x0004__x0004_二维及Ｍ型超声心动图特征：_x0004__x0004_升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；_x0004__x0004_各房室腔径正常。_x0004__x0004_室壁厚度及运动正常。房、室间隔连续性完好。_x0004__x0004_各组瓣膜形态、结构及运动正常。_x0004__x0004_心包及心包腔未见异常。_x0004__x0004_彩色及频谱多普勒超声心动图未见异常。</t>
   </si>
   <si>
     <t>甲状腺右叶结节-考虑良性病变；两侧颈部见淋巴结肝肋上斜切118MM/（－），剑上纵切58MM/2指，肝区回声较密尚均，门脉主干内径10MM，左支内径7MM，流速0.22MM/s，主干及右左支血流通畅，为向肝血流，流速曲线正常，脾门处脾静脉内径6MM，血流通畅。肝静脉血流通畅。脾肋间切32MM/（－）。甲状腺左叶及峡部未显示，甲状腺右叶43MM×14MM×10MM，峡部mm，右叶内见数个低回声团块，最大5MM×3MM，CDFI未见明显彩色血流。甲状腺内部回声均匀，甲状腺内血流分布正常。颈部右侧甲状腺下动脉血流通畅，PSV0.25MM/s，RI0.58。两侧颌上、两侧颈血管旁见数枚低回声区，左侧最大11MM×5MM，右侧最大12MM×5MM，两侧锁骨下未见明显肿块回声。CDFI未见异常血流。</t>
   </si>
   <si>
-    <t>1.考虑为乙状结肠MT伴病变肠周淋巴结转移、双肺多发转移及肝脏广泛转移，请结合临床；第2腰椎水平腹主动脉旁淋巴结转移可能；左侧心膈角淋巴结转移不除外；2.直肠中段结节状糖代谢增高灶，腺瘤或息肉可能，请结合肠镜检查；3.前列腺术后改变；两侧精囊腺糖代谢增高，考虑为炎症可能，请结合临床；4.双肺门及纵隔淋巴结炎可能；5.甲状腺术后改变。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺右叶术后缺如，左叶未见明显占位。胸部PET/CT图像示双肺野内见多发大小不等的类圆形结节伴糖代谢异常增高，右、左肺最大者分别位于右肺上叶背段、左肺下叶后段，大小分别为6.8MM×5.9MM和7.5MM×6.9MM，最大SUV值分别为3.5和7.5；双肺门、腔静脉气管间、主动脉弓旁及气管隆突上见多发糖代谢异常增高的高密度淋巴结，最大者位于左肺门，大小约为16.4MM×13.8MM，最大SUV值约为13.9；左侧心膈角内见糖代谢增高的淋巴结，大小约为9.5MM×6.6MM，最大SUV值约为1.5；两侧胸腔无积液；心脏无明显增大；两侧腋窝无殊。腹部PET/CT图像示肝脏内弥漫分布糖代谢异常增高的低密度灶，部分融合，最显著三枚病灶大小分别为34.8MM×30.9MM、58.1MM×38.6MM及54.6MM×44.9MM，最大SUV值分别为29.5、24.3和24.2，与毗邻胆囊分界欠清；腹主动脉（约第2腰椎水平）见糖代谢轻度增高的淋巴结，大小约为11.8MM×9.6MM，最大SUV值约为1.0；胃壁呈生理性糖代谢增强；肠道呈生理性糖代谢增强；脾脏、胰、两肾、肾下腺无殊；腹腔无积液。盆部PET/CT图像示乙状结肠局部肠壁增厚伴糖代谢异常增高，最大SUV值约为25.6，病变累及长度约为45.6MM；周围脂肪间隙模糊，病变肠周见糖代谢异常增高的淋巴结，最大者大小约为23.3MM×18.3MM，最大SUV值约为11.9；直肠中段肠壁略增厚伴结节状糖代谢增高，最大SUV值约为33.8，延迟2小时后最大SUV值约为46.1，滞留指数约为36.4%；两侧精囊腺糖代谢增高，早期相最大SUV值约为12.9，延迟相最大SUV值约为19.7，滞留指数约为52.7%；前列腺术后改变，局部可见尿液积聚；两侧盆壁见不伴明显糖代谢增高的小淋巴结显示，较大者大小约为13.4MM×7.4MM；膀胱内显像剂生理性积聚；两侧腹股沟无殊；盆腔无积液。骨骼PET图像未见糖代谢异常增高。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质增生，考虑为退行性变。</t>
+    <t>1.考虑为乙状结肠MT伴病变肠周淋巴结转移、双肺多发转移及肝脏广泛转移，请结合临床；第2腰椎水平腹主动脉旁淋巴结转移可能；左侧心膈角淋巴结转移不除外；_x0004_2.直肠中段结节状糖代谢增高灶，腺瘤或息肉可能，请结合肠镜检查；_x0004_3.前列腺术后改变；两侧精囊腺糖代谢增高，考虑为炎症可能，请结合临床；_x0004_4.双肺门及纵隔淋巴结炎可能；_x0004_5.甲状腺术后改变。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼外肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺右叶术后缺如，左叶未见明显占位。胸部PET/CT图像示双肺野内见多发大小不等的类圆形结节伴糖代谢异常增高，右、左肺最大者分别位于右肺上叶背段、左肺下叶后段，大小分别为6.8MM×5.9MM和7.5MM×6.9MM，最大SUV值分别为3.5和7.5；双肺门、腔静脉气管间、主动脉弓旁及气管隆突上见多发糖代谢异常增高的高密度淋巴结，最大者位于左肺门，大小约为16.4MM×13.8MM，最大SUV值约为13.9；左侧心膈角内见糖代谢增高的淋巴结，大小约为9.5MM×6.6MM，最大SUV值约为1.5；两侧胸腔无积液；心脏无明显增大；两侧腋窝无殊。腹部PET/CT图像示肝脏内弥漫分布糖代谢异常增高的低密度灶，部分融合，最显著三枚病灶大小分别为34.8MM×30.9MM、58.1MM×38.6MM及54.6MM×44.9MM，最大SUV值分别为29.5、24.3和24.2，与毗邻胆囊分界欠清；腹主动脉（约第2腰椎水平）见糖代谢轻度增高的淋巴结，大小约为11.8MM×9.6MM，最大SUV值约为1.0；胃壁呈生理性糖代谢增强；肠道呈生理性糖代谢增强；脾脏、胰、两肾、肾下腺无殊；腹腔无积液。盆部PET/CT图像示乙状结肠局部肠壁增厚伴糖代谢异常增高，最大SUV值约为25.6，病变累及长度约为45.6MM；周围脂肪间隙模糊，病变肠周见糖代谢异常增高的淋巴结，最大者大小约为23.3MM×18.3MM，最大SUV值约为11.9；直肠中段肠壁略增厚伴结节状糖代谢增高，最大SUV值约为33.8，延迟2小时后最大SUV值约为46.1，滞留指数约为36.4%；两侧精囊腺糖代谢增高，早期相最大SUV值约为12.9，延迟相最大SUV值约为19.7，滞留指数约为52.7%；前列腺术后改变，局部可见尿液积聚；两侧盆壁见不伴明显糖代谢增高的小淋巴结显示，较大者大小约为13.4MM×7.4MM；膀胱内显像剂生理性积聚；两侧腹股沟无殊；盆腔无积液。骨骼PET图像未见糖代谢异常增高。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质增生，考虑为退行性变。</t>
   </si>
   <si>
     <t>45.6MM</t>
@@ -5789,7 +5789,7 @@
     <t>肠周淋巴结,双肺,肝脏,第2腰椎水平腹主动脉旁淋巴结,左侧心膈角淋巴结</t>
   </si>
   <si>
-    <t>1.结合病史，考虑为胃窦部MT伴腹腔、腹膜后淋巴结转移，肝脏及双肺多发转移；2.双肺气肿；3.前列腺增大伴钙化。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部、鼻咽PET/CT图像示眶部、鼻咽部、咽旁间隙、副鼻窦均无殊。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示双肺见多发大小不等、糖代谢轻度增高的结节，较大者位于右肺上叶后基底段，大小约为9.8MM×8.7MM，最大SUV值约为4.5；双肺透亮度增高，见多发囊状透亮影；各级支气管腔通畅；两侧肺门、纵隔、胸壁、腋窝等均未见明显糖代谢异常增高灶。纵隔无明显肿大淋巴结，两肺门影不大；两侧胸膜无增厚；两侧胸腔无积液；心脏无明显增大；两侧腋窝无明显肿大淋巴结。腹部PET/CT图像示胃窦近幽门部胃壁异常增厚伴糖代谢增高，最大SUV值约为9.9，病灶旁脂肪间隙模糊，胃周、肝门部、胰头周围及腹膜后见糖代谢异常增高的肿大淋巴结，最大者位于胃窦旁，大小约为31.3MM×23.5MM，最大SUV值约为13.5；肝脏表面光整，各叶比例匀称，实质内见多发大小不等、糖代谢异常增高的稍低密度影，较大者位于左叶膈顶、右外叶下段及上段，大分别为28.3MM×20.7MM、33.7MM×15.5MM和33.2MM×26.8MM，最大SUV值分别为10.7、7.8和9.9；肝内外胆管无扩张；肠道呈生理性糖代谢增强；脾脏、胆囊、胰、两肾、肾下腺无殊；腹腔无积液。盆部PET/CT图像示前列腺增大，内似见微小致密影；膀胱内显像剂生理性积聚；肠道呈生理性糖代谢增强；膀胱充盈欠佳；两侧精囊腺形态可；两侧膀胱精囊三角对称；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见糖代谢异常增高。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质增生，考虑为退行性改变。</t>
+    <t>1.结合病史，考虑为胃窦部MT伴腹腔、腹膜后淋巴结转移，肝脏及双肺多发转移；_x0004_2.双肺气肿；_x0004_3.前列腺增大伴钙化。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部、鼻咽PET/CT图像示眶部、鼻咽部、咽旁间隙、副鼻窦均无殊。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示双肺见多发大小不等、糖代谢轻度增高的结节，较大者位于右肺上叶后基底段，大小约为9.8MM×8.7MM，最大SUV值约为4.5；双肺透亮度增高，见多发囊状透亮影；各级支气管腔通畅；两侧肺门、纵隔、胸壁、腋窝等均未见明显糖代谢异常增高灶。纵隔无明显肿大淋巴结，两肺门影不大；两侧胸膜无增厚；两侧胸腔无积液；心脏无明显增大；两侧腋窝无明显肿大淋巴结。腹部PET/CT图像示胃窦近幽门部胃壁异常增厚伴糖代谢增高，最大SUV值约为9.9，病灶旁脂肪间隙模糊，胃周、肝门部、胰头周围及腹膜后见糖代谢异常增高的肿大淋巴结，最大者位于胃窦旁，大小约为31.3MM×23.5MM，最大SUV值约为13.5；肝脏表面光整，各叶比例匀称，实质内见多发大小不等、糖代谢异常增高的稍低密度影，较大者位于左叶膈顶、右外叶下段及上段，大分别为28.3MM×20.7MM、33.7MM×15.5MM和33.2MM×26.8MM，最大SUV值分别为10.7、7.8和9.9；肝内外胆管无扩张；肠道呈生理性糖代谢增强；脾脏、胆囊、胰、两肾、肾下腺无殊；腹腔无积液。盆部PET/CT图像示前列腺增大，内似见微小致密影；膀胱内显像剂生理性积聚；肠道呈生理性糖代谢增强；膀胱充盈欠佳；两侧精囊腺形态可；两侧膀胱精囊三角对称；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见糖代谢异常增高。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质增生，考虑为退行性改变。</t>
   </si>
   <si>
     <t>胃窦部</t>
@@ -5798,7 +5798,7 @@
     <t>腹腔,腹膜后淋巴结,肝脏,双肺</t>
   </si>
   <si>
-    <t>右肺癌化疗后，对比2017-1-23CT：右上肺病变较前变化不大。右肺下叶小结节较前稍增大，左肺小结节较前未见明显变化。左侧锁骨下区、纵隔多发淋巴结，较前变化不大。肝囊肿。左肾小囊肿。右肺癌化疗后：右肺上叶见不规则结节状、片状病灶，边界不清，最大层面大小约12MM×8MM，边缘呈分叶状，增强扫描不均匀强化，紧贴斜裂胸膜，右上肺见少许斑片状稍高密度影，边界不清。左下肺后段、上叶及右下肺（se5-22.32.23）散在数个小类结节，边界清，大者长径约3MM。右肺上叶前内基底段支气管变窄，气管及其余支气管分支通畅。左侧锁骨下区、两下上气管旁、血管前、主动脉弓旁、主肺动脉窗、隆突上见多发淋巴结，部分边界不清，大者短径约5MM，轻度强化。两侧胸腔未见积液，左侧胸膜未见明显增厚。心包未见明显积液。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内见多个低密度灶，边界清，大者直径约9MM，未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉未见异常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。左肾见低密度灶，边界清，大小约4MM×3MM，未见强化。右肾及两肾下腺未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。扫描范围未见骨质破坏征象。</t>
+    <t>右肺癌化疗后，对比2017-1-23CT：_x0004_右上肺病变较前变化不大。_x0004_右肺下叶小结节较前稍增大，左肺小结节较前未见明显变化。_x0004_左侧锁骨下区、纵隔多发淋巴结，较前变化不大。_x0004_肝囊肿。左肾小囊肿。右肺癌化疗后：_x0004_右肺上叶见不规则结节状、片状病灶，边界不清，最大层面大小约12MM×8MM，边缘呈分叶状，增强扫描不均匀强化，紧贴斜裂胸膜，右上肺见少许斑片状稍高密度影，边界不清。左下肺后段、上叶及右下肺（se5-22.32.23）散在数个小类结节，边界清，大者长径约3MM。_x0004_右肺上叶前内基底段支气管变窄，气管及其余支气管分支通畅。_x0004_左侧锁骨下区、两下上气管旁、血管前、主动脉弓旁、主肺动脉窗、隆突上见多发淋巴结，部分边界不清，大者短径约5MM，轻度强化。_x0004_两侧胸腔未见积液，左侧胸膜未见明显增厚。心包未见明显积液。_x0004_肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝内见多个低密度灶，边界清，大者直径约9MM，未见强化。_x0004_肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉未见异常。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。_x0004_左肾见低密度灶，边界清，大小约4MM×3MM，未见强化。_x0004_右肾及两肾下腺未见异常。_x0004_膈脚后、腹主动脉旁未见肿大淋巴结。_x0004_扫描范围未见骨质破坏征象。</t>
   </si>
   <si>
     <t>左下肺癌术后改变。左中肺节段性不张，左肺中叶条索影及斑片影考虑为纤维增殖灶。右侧肾下腺结节，考虑腺瘤可能性大。左肺癌术后，左下肺叶术后缺如，左侧胸廓稍缩小，纵隔稍左侧移位。左肺中叶见条索影及斑片影，边界尚清，邻近胸膜粘连，左肺中叶纵隔旁见条片状软组织密度灶，余肺内未见明确实质性病灶。气管、所示支气管及其分枝通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。右侧胸膜未见增厚、粘连。肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝内未见异常密度灶。肝内外胆管无扩张，胆囊不大，壁不厚，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾不大，密度均匀。胰腺形态、大小及密度未见异常。右侧肾下腺见一结节，直径约10MM，边界清楚，密度均匀，增强扫描均匀强化。左侧肾下腺未见异常。两肾未见异常。肝门区及腹膜后未见肿大淋巴结。扫描范围内未见明确骨质破坏。</t>
@@ -5807,13 +5807,13 @@
     <t>右侧肾下腺</t>
   </si>
   <si>
-    <t>右肺下叶尖后段类结节灶，考虑肺癌可能性大。左肺下叶后段少许斑片灶，考虑炎性病变。左肺中叶小斑片灶，增殖性病灶？建议复查。甲状腺两叶结节，考虑结节性甲状腺肿可能性大。胸中段食管管腔内可疑病灶及胸上段食管管壁局限性增厚，建议进一步检查。肝S7低密度灶，囊肿？扫描范围内肝S6低密度灶，建议进一步检查（病灶未包全）。左下胸膜局限性增厚。两肺纹理清晰，右肺下叶尖后段近胸膜处见结节灶，大小约9MM×11MM，略呈分叶状，病灶边缘较毛糙，见短毛刺并可见胸膜牵拉，病灶内密度欠均匀，呈部分实性，周围见少许磨玻璃影，增强后实性成分较明显强化，病灶周围未见明显卫星灶。左肺下叶后段见少许斑片灶，边界欠清楚，左肺中叶见小斑片灶，大小约4MM×7MM，形态欠规则，邻近胸膜受牵拉。气管及支气管分支通畅。两侧锁骨下区、两肺门及纵隔、两侧腋窝未见明显肿大淋巴结。两侧胸腔未见积液。左下胸膜轻度增厚、粘连，右侧胸膜无增厚、粘连。心包未见积液。胸中段食管管腔内似可见软组织灶向管腔内突出，边界尚清楚，中度强化，胸上段食管近膈面管壁可见局限性增厚，增强后较均匀强化。扫描范围内骨质未见破坏征象。扫描范围内甲状腺两叶见多个类结节灶，边界尚清楚，不均匀强化。肝S7见低密度灶，大小约5MM×5MM，未见明显强化，肝S6（Se3，Im139）见低密度灶，病灶未扫完。</t>
+    <t>右肺下叶尖后段类结节灶，考虑肺癌可能性大。_x0004_左肺下叶后段少许斑片灶，考虑炎性病变。_x0004_左肺中叶小斑片灶，增殖性病灶？建议复查。_x0004_甲状腺两叶结节，考虑结节性甲状腺肿可能性大。_x0004_胸中段食管管腔内可疑病灶及胸上段食管管壁局限性增厚，建议进一步检查。_x0004_肝S7低密度灶，囊肿？扫描范围内肝S6低密度灶，建议进一步检查（病灶未包全）。左下胸膜局限性增厚。两肺纹理清晰，右肺下叶尖后段近胸膜处见结节灶，大小约9MM×11MM，略呈分叶状，病灶边缘较毛糙，见短毛刺并可见胸膜牵拉，病灶内密度欠均匀，呈部分实性，周围见少许磨玻璃影，增强后实性成分较明显强化，病灶周围未见明显卫星灶。左肺下叶后段见少许斑片灶，边界欠清楚，左肺中叶见小斑片灶，大小约4MM×7MM，形态欠规则，邻近胸膜受牵拉。_x0004_气管及支气管分支通畅。_x0004_两侧锁骨下区、两肺门及纵隔、两侧腋窝未见明显肿大淋巴结。_x0004_两侧胸腔未见积液。左下胸膜轻度增厚、粘连，右侧胸膜无增厚、粘连。_x0004_心包未见积液。_x0004_胸中段食管管腔内似可见软组织灶向管腔内突出，边界尚清楚，中度强化，胸上段食管近膈面管壁可见局限性增厚，增强后较均匀强化。_x0004_扫描范围内骨质未见破坏征象。_x0004_扫描范围内甲状腺两叶见多个类结节灶，边界尚清楚，不均匀强化。_x0004_肝S7见低密度灶，大小约5MM×5MM，未见明显强化，肝S6（Se3，Im139）见低密度灶，病灶未扫完。</t>
   </si>
   <si>
     <t>9MM×11MM</t>
   </si>
   <si>
-    <t>心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号心功能正常心超声检测值：LA   34MM       AO     28MM        MV E 0.81MM/s     EF 59%LV   49MM       IVS     8MM           A 0.74MM/s     FS 31% RA   31MM       LVPW    7MMRV   16MM       PA     23MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图未见异常。</t>
+    <t>心脏结构及运动未见异常_x0004__x0004_各房室腔及大血管未探及异常血流信号_x0004__x0004_心功能正常心超声检测值：_x0004__x0004_LA   34MMAO     28MMV E 0.81m/s     EF 59%_x0004__x0004_LV   49MMIVS     8MMA 0.74m/s     FS 31% _x0004__x0004_RA   31MMLVPW    7MM_x0004__x0004_RV   16MMPA     23MM_x0004__x0004__x0004__x0004_二维及Ｍ型超声心动图特征：_x0004__x0004_升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；_x0004__x0004_各房室腔径正常。_x0004__x0004_室壁厚度及运动正常。房、室间隔连续性完好。_x0004__x0004_各组瓣膜形态、结构及运动正常。_x0004__x0004_心包及心包腔未见异常。_x0004__x0004_彩色及频谱多普勒超声心动图未见异常。</t>
   </si>
   <si>
     <t>左上肺癌术后化疗后改变，术区未见明确复发征象；左残肺散在斑片及索条，考虑纤维增殖灶，较前相仿；右上肺背段小类结节，较前未见明显变化，建议随诊；右下肺舌段斑片灶，考虑慢性炎症，较前相仿；左侧胸膜轻度增厚，左侧胸腔少量积液，较前相仿；肝内多发囊肿；右肾小囊肿。左上肺癌术后化疗后，与2015-05-14日片对比：左肺上叶术后缺失，左肺上叶支气管残端见线样致密影，局部未见明确软组织肿块。左残肺见少许斑片灶、条索病灶，与胸膜粘连，较前相仿。右下肺舌段见散在斑片灶，边界欠清，增强后明显强化，较前相仿。右上肺背段见一小结节，短径约3MM，边界清，较前变化不明显。纵隔稍向左偏移，两肺门及纵隔未见明显肿大淋巴结。左侧少量胸腔积液、胸膜稍增厚，较前相仿，右侧未见胸腔积液及胸膜增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝内见多发类圆形低密灶，边界清，最大者直径约13MM，边界清，增强扫描未见强化，大致同前。胆囊大小正常，其内未见结石，肝内胆管、胆总管未见扩张，其内未见结石。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见小低密灶，边界清，短径约3MM，增强扫描未见强化，左肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见明显肿大淋巴结。左侧第4、5前肋局部骨皮质稍扭曲，未见明显异常软组织影，较前相仿。</t>
@@ -5822,7 +5822,7 @@
     <t>肝胆胰肾输尿管膀胱前列腺肾下腺未见占位肝肋上斜切139MM/（－），剑上纵切65MM/2指，肝区回声稍密不均，门脉主干内径11MM，左支内径8MM，流速0.20MM/s，主干及右左支血流通畅，为向肝血流，流速曲线正常，脾门处脾静脉内径5MM，血流通畅。肝静脉血流通畅。脾肋间切30MM/（－）。胆囊78MM×30MM，胆总管4MM。胰头18MM，胰体16MM，胰尾16MM。左肾106MM×50MM×49MM，肾盂分离（－），右肾97MM×49MM×48MM，肾盂分离（－）。两侧输尿管未见明显扩张。两侧肾下腺区未见明显占位。膀胱充盈尚可，未见明显异常。前列腺：39MM×33MM×35MM，未向膀胱突出。CDFI示肝胆胰肾前列腺血流正常。</t>
   </si>
   <si>
-    <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，32，20-37，右房内径，36，19-40，右室舒张末内径，43，35-56，右室收缩末内径，29，23-35，室间隔厚度，9，6-11，右室后壁厚度，9，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒测及轻微主动脉瓣反流。，4、左房室不大，肺动脉不增宽，，连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约27MMHg，。，三、，右心功能测定：，LVEF：62%；，二尖瓣血流图示E/A，&amp;lt；，1；DT：153MMs，四、组织多普勒测定：，DTI示S波峰值：10.0CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
+    <t>静息状态上超声心动图未见异常常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,32,20-37,右房内径,36,19-40,右室舒张末内径,43,35-56,右室收缩末内径,29,23-35,室间隔厚度,9,6-11,右室后壁厚度,9,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。,3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒测及轻微主动脉瓣反流。,4、左房室不大，肺动脉不增宽，,连续多普勒据轻微三尖瓣反流估测肺动脉收缩压约27MMHg,。,三、,右心功能测定：,LVEF：62%;,二尖瓣血流图示E/A,&amp;lt;,1;DT:153MMs,四、组织多普勒测定：,DTI示S波峰值:10.0CM/s;E'/A',&amp;lt;,1,五、结论：,</t>
   </si>
   <si>
     <t>右肺腺癌化疗后复查，与2011-12-09片对比：右上肺病灶，基本同前。右肺门淋巴结基本同前。肝左叶转移瘤，基本同前。胸骨、C7、T1、T9左侧横突、L2、3椎体病灶，考虑转移瘤可能性大，较前无明显改变。右肺腺癌化疗后复查，与2011-12-09片对比：右上肺叶外基底段可见类楔形病灶，边界不清楚，与右侧胸膜粘连，病灶大小约21MM×29MM，较前无明显变化，其内可见片低密度坏死区，增强后实质成分可见明显强化，病灶周围可见少许斑片状条索状影。左下肺后段新见一小结节影，大小约4MM×4MM，余左纹理清晰，肺内未见实质性病变。气管及支气管分支通畅。右肺门可见数个淋巴结，最大者约7MM×7MM，较前变化不明显。两侧胸腔未见积液。两侧胸膜无增厚、粘连。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝左叶S5可见双个结节状低密度灶，边界不清，大小约11MM×13MM及7MM×8MM，增强后轻度强化，强化程度低于肝实质。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。胸骨、C7、T1、T9左侧横突、L2、3椎体可见结节状致密影，较前无明显变化。</t>
@@ -5846,16 +5846,16 @@
     <t>淋巴结,胰颈及体部,脾,左侧肾下腺,腹膜,骨</t>
   </si>
   <si>
-    <t>心脏结构及运动未见异常二尖瓣轻度关闭不全心功能正常心超声检测值：LA   32MM       AO     23MM        MV E 0.86MM/s     EF 72%LV   54MM       IVS     8MM           A 0.62MM/s     FS 42% RA   33MM       LVPW   10MMRV   17MM       PA     18MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图：二尖瓣右房侧可见少量蓝色反流血流信号，VP：172CM/s，PG：12MMHg。</t>
-  </si>
-  <si>
-    <t>1.结合病史，考虑为左肺下叶前段周围型MT；2.左肺下叶前段胸膜上不伴明显糖代谢异常增高的小结节，请随访除外转移；左肺下叶后段水平裂旁、右肺上叶外基底段胸膜上慢性炎性小结节可能性大；3.右乳外下象限良性占位（纤维腺瘤可能），左乳外下象限钙化灶，建议临床进一步检查；4.肝右外叶良性占位（血管瘤）可能，建议临床进一步检查。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示左肺下叶前段见一大小约为22.5MM×14.0MM、糖代谢异常增高的不规则软组织结节，最大SUV值约为4.4，内见充气支气管，边缘分叶状伴长短毛刺，相邻胸膜牵拉凹陷；左肺下叶前段胸膜上见一直径约为3.0MM小结节影，左肺下叶后段水平裂旁和右肺上叶外基底段胸膜上各见一小结节片影，均未见明显糖代谢异常增高；各级支气管腔通畅；纵隔、两肺门、腋窝均未见明显糖代谢异常增高及肿大淋巴结；两侧胸腔无积液；心脏无明显增大；左乳外下象限见一点状钙化；右乳外下象限见一大小约为6.0MM×3.7MM稍高密度结节影，边缘清晰光整。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，肝右外叶见一大小约为10.0MM×7.0MM稍低密度灶；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；胆囊、胰、两肾、肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁未见异常增厚；子宫和两附件区未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，颈椎生理曲度变平；平扫骨窗示诸骨未见明显骨质破坏吸收征象。</t>
+    <t>心脏结构及运动未见异常_x0004__x0004_二尖瓣轻度关闭不全_x0004__x0004_心功能正常心超声检测值：_x0004__x0004_LA   32MMAO     23MMV E 0.86m/s     EF 72%_x0004__x0004_LV   54MMIVS     8MMA 0.62m/s     FS 42% _x0004__x0004_RA   33MMLVPW   10MM_x0004__x0004_RV   17MMPA     18MM_x0004__x0004__x0004__x0004_二维及Ｍ型超声心动图特征：_x0004__x0004_升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；_x0004__x0004_各房室腔径正常。_x0004__x0004_室壁厚度及运动正常。房、室间隔连续性完好。_x0004__x0004_各组瓣膜形态、结构及运动正常。_x0004__x0004_心包及心包腔未见异常。_x0004__x0004_彩色及频谱多普勒超声心动图:二尖瓣右房侧可见少量蓝色反流血流信号，VP：172CM/s,PG：12MMHg。</t>
+  </si>
+  <si>
+    <t>1.结合病史，考虑为左肺下叶前段周围型MT；_x0004_2.左肺下叶前段胸膜上不伴明显糖代谢异常增高的小结节，请随访除外转移；左肺下叶后段水平裂旁、右肺上叶外基底段胸膜上慢性炎性小结节可能性大；_x0004_3.右乳外下象限良性占位（纤维腺瘤可能），左乳外下象限钙化灶，建议临床进一步检查；_x0004_4.肝右外叶良性占位（血管瘤）可能，建议临床进一步检查。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET/CT图像示左肺下叶前段见一大小约为22.5MM×14.0MM、糖代谢异常增高的不规则软组织结节，最大SUV值约为4.4，内见充气支气管，边缘分叶状伴长短毛刺，相邻胸膜牵拉凹陷；左肺下叶前段胸膜上见一直径约为3.0MM小结节影，左肺下叶后段水平裂旁和右肺上叶外基底段胸膜上各见一小结节片影，均未见明显糖代谢异常增高；各级支气管腔通畅；纵隔、两肺门、腋窝均未见明显糖代谢异常增高及肿大淋巴结；两侧胸腔无积液；心脏无明显增大；左乳外下象限见一点状钙化；右乳外下象限见一大小约为6.0MM×3.7MM稍高密度结节影，边缘清晰光整。腹部PET图像见胃壁均匀性轻度糖代谢生理性增强；肠道呈线型生理性糖代谢增强；肝、胆囊、胰、脾、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。CT平扫所示肝脏表面光整，各叶比例匀称，肝右外叶见一大小约为10.0MM×7.0MM稍低密度灶；肝内外胆管无扩张；脾脏不大，密度均，未见明显占位；胆囊、胰、两肾、肾下腺无殊；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显糖代谢异常增强。CT平扫示膀胱壁未见异常增厚；子宫和两附件区未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，颈椎生理曲度变平；平扫骨窗示诸骨未见明显骨质破坏吸收征象。</t>
   </si>
   <si>
     <t>22.5MM×14.0MM</t>
   </si>
   <si>
-    <t>右上肺癌综合治疗后，与2016-03-21日片对比：右肺上叶术后缺失。右残肺内少许纤维增殖灶。右上胸膜增厚。左肺下叶、上叶类结节影同前，建议随访。左上肺外侧基底段新见小斑片影，考虑炎症。纵膈及右侧锁骨下淋巴结转移，较前未见明显变化。右侧胸腔少量积液同前。甲状腺右叶病灶，考虑结节性甲状腺肿。肝S2小囊肿。胆囊小结石。右肾小囊肿。右上肺癌综合治疗后，与2016-03-21日片对比：右肺下叶术后缺失。右肺上叶见少许纤维条索，边界清晰，未见明确结节影，大致同前。左肺可见数个小类结节影，较大者直径约3MM，边界欠清，较前未见明显变化；左上肺外侧基底段新见小斑片影（Se8，Im40），边界不清。气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。右侧锁骨下、血管前、上气管旁见多个淋巴结，最大者短径约12MM，边界不清，密度不均，内见坏死，增强后可见明显强化，较前未见明显变化。右侧胸腔见少量积液同前。左侧胸腔未见积液。右上胸膜增厚。扫描所见甲状腺右侧叶可见2个结节，较大者约14MM×12MM，边界清晰，未见强化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S2见一小囊性灶，直径约为3MM，边界清楚，增强后未见强化，肝内未见异常密度影及强化灶。肝内胆管正常，其内未见结石影，胆囊大小正常，胆囊管内见小结石影，胆总管未见扩张，其内未见结石影。肝门区正常；门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见一囊性灶，大小约7MM×4MM，边界清晰，增强扫描未见强化，左肾所见正常。两肾下腺所见正常。膈脚后、腹主动脉旁未见肿大淋巴结。扫描层面中胸椎、腰椎、肋骨未见明确骨质破坏征象。</t>
+    <t>右上肺癌综合治疗后，与2016-03-21日片对比：右肺上叶术后缺失。右残肺内少许纤维增殖灶。右上胸膜增厚。左肺下叶、上叶类结节影同前，建议随访。左上肺外侧基底段新见小斑片影，考虑炎症。纵膈及右侧锁骨下淋巴结转移，较前未见明显变化。右侧胸腔少量积液同前。甲状腺右叶病灶，考虑结节性甲状腺肿。肝S2小囊肿。胆囊小结石。右肾小囊肿。右上肺癌综合治疗后，与2016-03-21日片对比：右肺下叶术后缺失。右肺上叶见少许纤维条索，边界清晰，未见明确结节影，大致同前。左肺可见数个小类结节影，较大者直径约3MM，边界欠清，较前未见明显变化；左上肺外侧基底段新见小斑片影（Se8,Im40），边界不清。气管及支气管分枝通畅，未见明显软组织肿物或受压变窄。右侧锁骨下、血管前、上气管旁见多个淋巴结，最大者短径约12MM，边界不清，密度不均，内见坏死，增强后可见明显强化，较前未见明显变化。右侧胸腔见少量积液同前。左侧胸腔未见积液。右上胸膜增厚。扫描所见甲状腺右侧叶可见2个结节，较大者约14MM×12MM，边界清晰，未见强化。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，肝S2见一小囊性灶，直径约为3MM，边界清楚，增强后未见强化，肝内未见异常密度影及强化灶。肝内胆管正常，其内未见结石影，胆囊大小正常，胆囊管内见小结石影，胆总管未见扩张，其内未见结石影。肝门区正常；门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见一囊性灶，大小约7MM×4MM，边界清晰，增强扫描未见强化，左肾所见正常。两肾下腺所见正常。膈脚后、腹主动脉旁未见肿大淋巴结。扫描层面中胸椎、腰椎、肋骨未见明确骨质破坏征象。</t>
   </si>
   <si>
     <t>纵膈及右侧锁骨下淋巴结转移</t>
@@ -5885,7 +5885,7 @@
     <t>直肠癌术后肺转移、肝转移综合治疗后，与2015-01-20片对比：直肠癌吻合口未见明确异常。两侧乳腺癌术后改变，局部未见明显复发。两肺多发病变，左肺下叶尖段病灶较前缩小，余较前未见明显变化。肝S4、S7病灶，考虑消融术后改变，较前未见明显变化。肝S7结节，考虑血管瘤。肝S7肝内胆管结石。甲状腺左叶结节，较前未见明显变化，考虑良性。直肠癌术后肺转移、肝转移综合治疗后，与2015-01-20片对比：左肺下叶尖段见一结节灶，大小约16MM×13MM，边界不清，密度不均匀，增强扫描不均匀强化，病灶周围见多发条索灶，与邻近胸膜牵拉粘连，较前缩小。左肺上叶前基底段见一结节，大小约12MM×11MM，边界不清，密度不均匀，增强扫描轻度强化，大致同前。左肺中叶胸膜上及上叶后基底段各见一小厚壁空洞灶，大小约3MM×4MM、12MM×9MM，边缘模糊，周围见条索灶，与邻近胸膜粘连，大致同前。右肺纹理清晰，未见明显实质性病变。气管及支气管分支通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。两侧胸膜未见明显增厚。甲状腺左叶体积增大，见一稍低密度结节，大小约16MM×13MM，边界清楚，增强扫描较明显强化。两侧乳腺术后缺失，两侧胸壁未见明显肿物。两侧腋窝未见肿大淋巴结。肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝S4、S7各见一斑片状低密度病变，较大者大小约26MM×16MM，边界清晰，增强扫描未见强化。肝S7见一结节，大小约13MM×9MM，边界清楚，增强扫描各期均见明显强化。肝S7另见一颗粒状致密灶。肝内外胆管未见扩张，胆囊不大，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾及胰腺形态、大小及密度未见异常。两肾及两侧肾下腺未见异常。肝门区及腹膜后未见肿大淋巴结。直肠癌术后，吻合口区肠壁未见明显增厚，肠周间隙清晰。膀胱充盈良好，境界清楚。子宫、宫颈大小、形态未见异常，宫腔内见金属节育环。两侧附件区未见明确肿块。两侧腹股沟区及两侧髂血管旁未见肿大淋巴结。扫描范围内未见明确骨质破坏。</t>
   </si>
   <si>
-    <t>左下肺癌多发转移化疗后，对比2016.09.28片：左肺下叶近肺门区肺癌，范围较前稍缩小。左肺散在小类结节影，考虑增殖灶。左肺门及纵隔多发肿大淋巴结，考虑转移瘤，较前稍缩小。左侧胸膜散在小结节状增厚，不排除胸膜种植，部分较前缩小。胸骨柄、胸椎、左侧第2前肋骨质破坏，考虑转移瘤。甲状腺右叶病变、右侧食管气管旁沟结节，考虑胸骨后甲状腺并结节性甲状腺肿可能性大。左下肺癌多发转移化疗后，对比2016.09.28片：左肺下叶近肺门区见软组织肿块，边缘不规则，可见分叶及短毛刺，范围约34MM×22MM，密度欠均匀，增强扫描不均匀明显强化，范围较前稍缩小；包绕左肺下叶支气管及部分分支，管腔部分狭窄；邻近肺组织见斑片状、条片状高密度影，边界模糊，范围较前稍增大。左侧下上气管旁、隆突上及左肺门见多发淋巴结，最大约15MM×17MM，增强扫描不均匀强化，较前稍缩小。右肺门及余纵隔未见明显肿大淋巴结，两侧腋窝未见肿大淋巴结。两侧胸腔未见积液。左侧叶间胸膜及肋胸膜见散在小结节状增厚，增强后强化。心包未见积液。甲状腺右侧叶明显增大，密度不均匀，部分突入纵隔，内可见多发低密度灶，大者大小约15MM×14MM，不均匀强化；右侧气管食管旁沟见一结节，大小约25MM×18MM，密度不均匀，增强后局部强化与甲状腺组织相仿，下缘与甲状腺右叶分界不清。胸骨柄、胸11椎体右前份、胸12椎体左后份及左侧第2前肋骨质密度不均匀，内见低密度区，边缘模糊，局部椎体骨皮质欠连续。</t>
+    <t>左下肺癌多发转移化疗后，对比2016.09.28片：_x0004_左肺下叶近肺门区肺癌，范围较前稍缩小。_x0004_左肺散在小类结节影，考虑增殖灶。_x0004_左肺门及纵隔多发肿大淋巴结，考虑转移瘤，较前稍缩小。_x0004_左侧胸膜散在小结节状增厚，不排除胸膜种植，部分较前缩小。_x0004_胸骨柄、胸椎、左侧第2前肋骨质破坏，考虑转移瘤。_x0004_甲状腺右叶病变、右侧食管气管旁沟结节，考虑胸骨后甲状腺并结节性甲状腺肿可能性大。_x0004_左下肺癌多发转移化疗后，对比2016.09.28片：_x0004_左肺下叶近肺门区见软组织肿块，边缘不规则，可见分叶及短毛刺，范围约34MM×22MM，密度欠均匀，增强扫描不均匀明显强化，范围较前稍缩小；包绕左肺下叶支气管及部分分支，管腔部分狭窄；邻近肺组织见斑片状、条片状高密度影，边界模糊，范围较前稍增大。_x0004_左侧下上气管旁、隆突上及左肺门见多发淋巴结，最大约15MM×17MM，增强扫描不均匀强化，较前稍缩小。右肺门及余纵隔未见明显肿大淋巴结，两侧腋窝未见肿大淋巴结。_x0004_两侧胸腔未见积液。左侧叶间胸膜及肋胸膜见散在小结节状增厚，增强后强化。心包未见积液。_x0004_甲状腺右侧叶明显增大，密度不均匀，部分突入纵隔，内可见多发低密度灶，大者大小约15MM×14MM，不均匀强化；右侧气管食管旁沟见一结节，大小约25MM×18MM，密度不均匀，增强后局部强化与甲状腺组织相仿，下缘与甲状腺右叶分界不清。_x0004_胸骨柄、胸11椎体右前份、胸12椎体左后份及左侧第2前肋骨质密度不均匀，内见低密度区，边缘模糊，局部椎体骨皮质欠连续。</t>
   </si>
   <si>
     <t>34MM×22MM</t>
@@ -5894,13 +5894,13 @@
     <t>左肺门及纵隔多发肿大淋巴结,左侧胸膜,胸骨柄,胸椎,左侧第2前肋骨</t>
   </si>
   <si>
-    <t>右乳癌综合治疗后，肝占位放疗后病例：1.肝右左叶交界处无明显糖代谢增高病灶，请结合临床；左肾下腺无糖代谢增高结节灶，考虑良性病变；重度脂肪肝，两肾结石，右肾囊肿；2.左肺中叶及右肺下叶舌段少许慢性炎症，双侧少量胸腔积液；左腋窝数枚无糖代谢稍大淋巴结；3.脑膜瘤术后，左颞枕叶软化灶，左侧颞枕骨部分缺如；4.右侧下颌窦炎。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像：脑部PET图像示脑皮质及两侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常。CT平扫示左侧颞骨、枕骨部分缺如，左侧颞叶及枕叶见不规则片状低密度影，边界尚清，范围约45.7MM×18.0MM，余脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。右侧下颌窦粘膜增厚，其内见液性密度影，两侧额窦、筛窦、蝶窦和左侧下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET图像示两肺野、肺门、纵隔、胸壁、腋窝等均未见明显糖代谢异常增高灶。CT平扫所示两肺纹理清晰可，左肺中叶及右肺下叶舌段见少许斑片条索影，余未见明显异常占位；所示各级支气管腔通畅；纵隔无明显肿大淋巴结，两肺门影不大；两侧胸膜无增厚；两侧胸腔少量积液；心影不大；左腋窝见数枚无糖代谢增高稍大淋巴结，右侧腋窝无明显肿大淋巴结。腹部PET/CT图像见胃壁均匀性轻度糖代谢生理性增强；肝脏表面尚光，肝实质密度弥漫降低，明显低于脾脏，肝右左叶交界处见片状相对稍高密度区，边界欠清，范围约81.6MM×41.3MM，该病灶未见明显糖代谢异常增高，延迟2小时后，肝实质内仍未见明显糖代谢异常增高灶；左侧肾下腺见无糖代谢异常增高结节灶，大小约14.2MM×9.4MM，延迟2小时后仍未见糖代谢增高，脾脏无肿大，密度均匀；所示胆囊、胰腺无殊；右肾见一直径约13.2MM无糖代谢增高囊状低密度灶，两肾实质内见小点状钙化密度影；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；两侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈可，壁光滑无增厚；子宫和两附件区缺如；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示部分颈、胸、腰、骶椎体及椎小关节骨质增生。</t>
+    <t>右乳癌综合治疗后，肝占位放疗后病例：_x0004_1.肝右左叶交界处无明显糖代谢增高病灶，请结合临床；左肾下腺无糖代谢增高结节灶，考虑良性病变；重度脂肪肝，两肾结石，右肾囊肿；_x0004_2.左肺中叶及右肺下叶舌段少许慢性炎症，双侧少量胸腔积液；左腋窝数枚无糖代谢稍大淋巴结；_x0004_3.脑膜瘤术后，左颞枕叶软化灶，左侧颞枕骨部分缺如；_x0004_4.右侧下颌窦炎。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像：脑部PET图像示脑皮质及两侧基底节、丘脑、小脑放射性分布对称，未见明显糖代谢异常。CT平扫示左侧颞骨、枕骨部分缺如，左侧颞叶及枕叶见不规则片状低密度影，边界尚清，范围约45.7MM×18.0MM，余脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。右侧下颌窦粘膜增厚，其内见液性密度影，两侧额窦、筛窦、蝶窦和左侧下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET图像示两肺野、肺门、纵隔、胸壁、腋窝等均未见明显糖代谢异常增高灶。CT平扫所示两肺纹理清晰可，左肺中叶及右肺下叶舌段见少许斑片条索影，余未见明显异常占位；所示各级支气管腔通畅；纵隔无明显肿大淋巴结，两肺门影不大；两侧胸膜无增厚；两侧胸腔少量积液；心影不大；左腋窝见数枚无糖代谢增高稍大淋巴结，右侧腋窝无明显肿大淋巴结。腹部PET/CT图像见胃壁均匀性轻度糖代谢生理性增强；肝脏表面尚光，肝实质密度弥漫降低，明显低于脾脏，肝右左叶交界处见片状相对稍高密度区，边界欠清，范围约81.6MM×41.3MM，该病灶未见明显糖代谢异常增高，延迟2小时后，肝实质内仍未见明显糖代谢异常增高灶；左侧肾下腺见无糖代谢异常增高结节灶，大小约14.2MM×9.4MM，延迟2小时后仍未见糖代谢增高，脾脏无肿大，密度均匀；所示胆囊、胰腺无殊；右肾见一直径约13.2MM无糖代谢增高囊状低密度灶，两肾实质内见小点状钙化密度影；腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量放射性生理性积聚；肠道呈线型生理性糖代谢增强；两侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈可，壁光滑无增厚；子宫和两附件区缺如；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示部分颈、胸、腰、骶椎体及椎小关节骨质增生。</t>
   </si>
   <si>
     <t>肝内实质占位-性质待定，建议进一步检查；脂肪肝；甲状腺弥漫性病变；甲状腺两侧叶增生结节；两侧颈部见淋巴结；右乳退化不全；左胸壁手术区积液肝肋上斜切124MM/（－），剑上纵切57MM/2指，肝区回声密集增强，肝内见数个低回声团块，最大10MM，CDFI未见明显彩色血流，门脉主干内径10MM。CDFI肝血流正常。甲状腺左叶42MM×16MM×15MM，甲状腺右叶45MM×17MM×18MM，峡部2MM。两侧叶见多个低回声团块，左叶最大位于中上部6MM×4MM，右叶最大位于下极14MM×8MM，CDFI见少量点状彩色血流，甲状腺内部回声增粗不均匀，甲状腺内血流分布正常。颈部左侧甲状腺下动脉血流通畅，PSV0.21MM/s，RI0.56。颈部右侧甲状腺下动脉血流通畅，PSV0.26MM/s，RI0.61。两侧颌上、两侧颈血管旁见数枚低回声区，左侧最大9MM×3MM，右侧最大10MM×4MM，两侧锁骨下未见明显肿块回声。CDFI未见异常血流。左侧乳腺未显示。左侧胸壁手术区见50MM×15MM混合回声区，以无回声区为主，边界清，CDFI未见彩色血流。右侧乳腺导管增多，未见明显肿块回声。CDFI示右侧乳腺血流分布尚正常。两侧腋窝未见明显肿块回声，CDFI示血流分布尚正常。</t>
   </si>
   <si>
-    <t>心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号心功能正常心超声检测值：LA   21MM       AO     24MM        MV E 0.70MM/s     EF 71%LV   40MM       IVS     7MM           A 0.68MM/s      RA   29MM       LVPW    9MMRV   17MM       PA     17MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。心包及心包腔未见异常。彩色及频谱多普勒超声心动图未见异常。</t>
+    <t>心脏结构及运动未见异常_x0004__x0004_各房室腔及大血管未探及异常血流信号_x0004__x0004_心功能正常心超声检测值：_x0004__x0004_LA   21MMAO     24MMV E 0.70m/s     EF 71%_x0004__x0004_LV   40MMIVS     7MMA 0.68m/s      _x0004__x0004_RA   29MMLVPW    9MM_x0004__x0004_RV   17MMPA     17MM_x0004__x0004__x0004__x0004_二维及Ｍ型超声心动图特征：_x0004__x0004_升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；_x0004__x0004_各房室腔径正常。_x0004__x0004_室壁厚度及运动正常。房、室间隔连续性完好。_x0004__x0004_各组瓣膜形态、结构及运动正常。_x0004__x0004_心包及心包腔未见异常。_x0004__x0004_彩色及频谱多普勒超声心动图未见异常。</t>
   </si>
   <si>
     <t>肺类癌化疗后，与2015-4-3片对比：两肺多发结节并钙化灶，考虑转移瘤，大致同前；两锁下、纵隔及两肺门多发淋巴结肿大，考虑转移，部分较前增大；肝S6病灶，考虑转移瘤；肝S5、6小低密度灶，考虑囊肿；左肾结石，两肾囊肿；膈脚后、肝门区、腹腔干周围、腹主动脉旁多发淋巴结，部分较前稍增大；两侧髂血管旁多发肿大淋巴结，考虑转移；两颈多发肿大淋巴结，考虑转移，较前稍增大；甲状腺两叶增大并多发结节，较前未见明显变化；多发骨转移瘤，部分病灶较前增大。肺类癌化疗后，与2015-4-3片对比：两肺可见多发结节影，大小约2MM~9MM，部分边界欠清，密度欠均匀，部分内可见钙化影，与前片对比，未见明显变化。两锁下、胸骨下窝、血管前间隙、下、上气管旁、主动脉旁、隆突上、两肺门、左心缘旁可见多个肿大淋巴结，边界不清，部分融合，最大约53MM×44MM，增强见不均匀强化，病灶包绕气管，包绕两侧头臂静脉、下腔静脉，血管管腔变扁，与前片对比，部分淋巴结较前增大，气管内见软组织影。气管呈支架置入术后改变。两侧胸腔未见积液。两侧胸膜无增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀。肝S6见一类圆形低密度灶，边界尚清，大小约25MM×21MM，增强扫描不均匀明显强化。肝S5、6各见一小低密度灶，直径约2-3MM，边界清，增强未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。左肾盂可见数个结节样致密影，最大直径约11MM。两肾见数个类圆形低密度灶，最大直径约9MM。两肾下腺未见异常。膈脚后、肝门区、腹腔干周围、腹主动脉旁见多发淋巴结，部分边界欠清，最大者短径约12MM，较明显强化，部分较前稍增大。膀胱充盈良好，境界清楚。精囊腺、前列腺未见明显异常。直肠未见明显异常。两侧髂血管旁见多发淋巴结，最大者短径约20MM，明显强化。两侧腹股沟未见明显肿大淋巴结。两颈II~V区见数个肿大淋巴结，最大者约21MM×17MM，边界不清，部分相互融合，增强扫描较明显强化，较前稍增大。喉咽腔形态未见异常，两侧梨状窝对称。两侧真假声带未见增厚，前联合未见增厚。两侧颌上腺、腮腺大小形态未见异常，密度均匀。甲状腺两叶体积增大，密度不均匀，内见多发低密度结节，边界不清，最大约19MM×20MM，密度不均匀，内见钙化灶，增强扫描可见轻度不均匀强化，强化程度低于正常甲状腺组织。胸骨、多个颈椎、胸椎、腰椎、骶椎、左侧锁骨、两侧多个肋骨、两侧髂骨、坐骨、耻骨及所见股骨见多发成骨性骨质破坏，右侧第8肋骨质破坏区周围见软组织肿块，较前明显。</t>
@@ -5924,7 +5924,7 @@
     <t>左肺癌术后化疗后，对比2013-5-28片：左中肺内段少许节段性不张，左肺中叶条索影及斑片影考虑为纤维增殖灶，较前变化不大。右上肺近膈面新见小类结节，转移待排，建议观察。右侧肾下腺结节，考虑腺瘤可能性大，大致同前。左肺癌术后化疗后，对比2013-5-28片：左下肺叶术后缺如，左侧胸廓稍缩小，左肺中叶见条索影及斑片影，边界尚清，邻近胸膜粘连，左肺中叶纵隔旁见条片状软组织密度灶，所见较前变化不大。右上肺近膈面见一小结节，直径约3MM，边界尚清。余肺内未见明确实质性病灶。气管、所示支气管及其分枝通畅。两肺门及纵隔未见明显肿大淋巴结。两侧胸腔未见积液。右侧胸膜未见增厚、粘连。肝脏形态、大小未见异常，各叶比例在正常范围，肝轮廓光整，肝内未见异常密度灶。肝内外胆管无扩张，胆囊不大，壁不厚，内未见异常密度灶。肝门区结构未见异常。门静脉未见异常。脾不大，密度均匀。胰腺形态、大小及密度未见异常。右侧肾下腺见一结节，直径约10MM，边界清楚，密度均匀，增强扫描均匀强化，大致同前。左侧肾下腺未见异常。两肾未见异常。肝门区及腹膜后未见肿大淋巴结。扫描范围内未见明确骨质破坏。</t>
   </si>
   <si>
-    <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，29，20-37，右房内径，35，19-40，右室舒张末内径，47，35-56，右室收缩末内径，28，23-35，室间隔厚度，8，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，肺动脉血流图未见异常。，三、，右心功能测定：，FS：41%；LVEF：72%；二尖瓣血流图示E/A，&amp;lt；，1；DT：180MMs，四、组织多普勒测定：，DTI示S波峰值：8CM/s；E'/A'，&amp;lt；，1，五、结论：，</t>
+    <t>静息状态上超声心动图未见异常常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,29,20-37,右房内径,35,19-40,右室舒张末内径,47,35-56,右室收缩末内径,28,23-35,室间隔厚度,8,6-11,右室后壁厚度,8,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒未测及二尖瓣反流。,3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。,4、左房室不大，肺动脉不增宽，肺动脉血流图未见异常。,三、,右心功能测定：,FS:41%;LVEF:72%；二尖瓣血流图示E/A,&amp;lt;,1;DT:180MMs,四、组织多普勒测定：,DTI示S波峰值:8CM/s;E'/A',&amp;lt;,1,五、结论：,</t>
   </si>
   <si>
     <t>右上肺癌术后化疗后：左残肺、右肺叶类结节灶，考虑增殖灶。左侧少量胸腔积液，部分为叶间积液，较前减少。两侧锁骨下区、纵隔及两肺门小淋巴结。肝囊肿。两肾囊肿。右上肺癌术后化疗后，与2013-10-08片对比：左肺上叶缺失，左残肺、右肺叶见散在类结节灶，直径约3~5MM，部分边界欠清，密度欠均匀。左肺上叶支气管中断，断端见金属密影，未见明确肿物。气管及余支气管分支未见明显狭窄及异常扩张。两侧锁骨下区、左侧气管食管沟、左下气管旁、主肺动脉窗、两侧肺门见数个小淋巴结，短径约3~6MM，边界清，密度均匀。左侧胸膜腔及叶间裂见少量液性密度区，较前减少。右侧胸腔未见积液。胸膜未见增厚。肝脏形态正常，各叶比例在正常范围以内，其外形轮廓光整，密度欠均匀，肝内见数个类圆形低密度灶，直径约2~4MM，边界清，密度均匀，未见强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影。胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。两肾见小囊性灶，短径约10MM，边界清，增强未见强化。右侧肾下腺见结节状稍增粗。左肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描范围内骨质未见破坏征象。</t>
@@ -5933,13 +5933,13 @@
     <t>右上肺,右上肺</t>
   </si>
   <si>
-    <t>心包腔中量积液心脏结构及运动未见异常各房室腔及大血管未探及异常血流信号心功能正常心超声检测值：LA   13MM       AO     29MM        MV E-A 0.65MM/s     EF 60%LV   36MM       IVS    11MM                           FS 31% RA   29MM       LVPW   11MMRV   17MM       PA     20MM  二维及Ｍ型超声心动图特征：升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；各房室腔径正常。室壁厚度及运动正常。房、室间隔连续性完好。各组瓣膜形态、结构及运动正常。前、后、心尖部心包见分离性液性暗区，最宽30MM，暗区内透声可。心脏被液性暗区包绕，呈摆动状。彩色及频谱多普勒超声心动图未见异常。</t>
+    <t>心包腔中量积液_x0004__x0004_心脏结构及运动未见异常_x0004__x0004_各房室腔及大血管未探及异常血流信号_x0004__x0004_心功能正常心超声检测值：_x0004__x0004_LA   13MMAO     29MMV E-A 0.65MM/s     EF 60%_x0004__x0004_LV   36MMIVS    11MMFS 31% _x0004__x0004_RA   29MMLVPW   11MM_x0004__x0004_RV   17MMPA     20MM_x0004__x0004__x0004__x0004_二维及Ｍ型超声心动图特征：_x0004__x0004_升主动脉内径正常，管壁光滑，主波幅度正常，重搏波存在；肺动脉内径正常；_x0004__x0004_各房室腔径正常。_x0004__x0004_室壁厚度及运动正常。房、室间隔连续性完好。_x0004__x0004_各组瓣膜形态、结构及运动正常。_x0004__x0004_前、后、心尖部心包见分离性液性暗区，最宽30MM，暗区内透声可。心脏被液性暗区包绕，呈摆动状。_x0004__x0004_彩色及频谱多普勒超声心动图未见异常。</t>
   </si>
   <si>
     <t>肝内多发低密度影，结合病史考虑转移。左肾旋转不良。前列腺内钙化灶。盆腔少量积液。L2、L5椎体改变，请结合临床及相关检查。CT平扫肝脏形态大小正常，表面光滑，各叶比例正常，肝实质内散在分布大小不等类圆形及片状略低密度影，边界不清，CT值约为21-43HU，增强扫描病灶边缘呈轻度强化。肝内外胆管未见明显扩张，胆囊不大，胆囊壁不厚。胰腺形态密度未见异常，脾不大，密度均匀。胃肠道管壁未见异常增厚，管腔无狭窄及扩张。肠系膜密度增高，并可见索条影。左肾门向外下方，右肾及两侧肾下腺未见异常，膀胱充盈尚可，壁不厚。前列腺内见钙化小结节。盆腔内可见少量液体影密度影，腹膜后未见确切肿大淋巴结影。L2椎体内见结节致密影，L5椎体密度增高并可见囊状透光区。</t>
   </si>
   <si>
-    <t>结肠脾区MT综合治疗后：1.右下腹腔糖代谢增高的占位，考虑为转移性MT；2.左肺上叶慢性炎性结节可能，请随访；3.肝多发囊肿。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET图像示两肺野、肺门、纵隔、胸壁、腋窝等均未见明显糖代谢异常增高灶。CT平扫所示两肺纹理清晰，左肺上叶胸膜上见不规则小结节影；所示各级支气管腔通畅；纵隔无明显肿大淋巴结，两肺门影不大；两侧胸膜无增厚；两侧胸腔无积液；心脏无明显增大；两侧腋窝无明显肿大淋巴结；两侧乳腺无明显占位。腹部PET/CT图像示结肠脾曲MT术后，右下腹腔见团块状软组织影，最大截面积约为39.5MM×28.5MM，周围脂肪间隙模糊，伴糖代谢异常增高，最大SUV值约为10.1。肝脏内见多发囊性低密度灶，较大者大小约为19.3MM×14.2MM。脾脏略大，未见明显糖代谢增高。胃壁均匀性轻度糖代谢生理性增强；胆囊、胰、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈，壁光滑无增厚；子宫和两附件区未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见异常。两侧骶髂关节面上见骨质密度增高影，考虑为良性改变。</t>
+    <t>结肠脾区MT综合治疗后：1.右下腹腔糖代谢增高的占位，考虑为转移性MT；_x0004_2.左肺上叶慢性炎性结节可能，请随访；_x0004_3.肝多发囊肿。禁食6小时余，静脉注射18F-FDG后，休息约60分钟，行全身PET/CT断层显像。脑部PET图像示脑皮质及两侧基底节、丘脑、小脑糖代谢分布对称，未见明显糖代谢异常。CT平扫示脑实质内未见明显异常密度影；各脑室、脑池无扩大和受推移；脑沟﹑脑裂无明显增宽；中线结构居中。眼眶部PET图像示眼球、眼眶内未见明显糖代谢异常。眼眶CT平扫示眼球环壁完整，球内未见异常密度灶，眼内肌对称未见增粗及异常变细，视神经未见异常密度灶，眶内脂肪间隙清晰。骨窗示眼眶壁、视神经管、眶下裂、眶上裂未见破坏扩大。鼻咽PET图像示鼻咽部、咽旁间隙、副鼻窦均未见明显糖代谢异常增高灶。鼻咽CT平扫示鼻咽顶后壁无增厚、表面光滑，双侧壁软组织对称，咽隐窝及咽鼓管开口无变窄，咽旁间隙清晰。两侧额窦、筛窦、蝶窦和下颌窦未见明显异常。颈部PET图像示两侧颈部、锁骨区、甲状腺等均未见明显糖代谢异常增高灶。CT平扫示两侧颈部无明显肿大淋巴结；口咽、喉咽部无占位；甲状腺无肿大，未见明显占位。胸部PET图像示两肺野、肺门、纵隔、胸壁、腋窝等均未见明显糖代谢异常增高灶。CT平扫所示两肺纹理清晰，左肺上叶胸膜上见不规则小结节影；所示各级支气管腔通畅；纵隔无明显肿大淋巴结，两肺门影不大；两侧胸膜无增厚；两侧胸腔无积液；心脏无明显增大；两侧腋窝无明显肿大淋巴结；两侧乳腺无明显占位。腹部PET/CT图像示结肠脾曲MT术后，右下腹腔见团块状软组织影，最大截面积约为39.5MM×28.5MM，周围脂肪间隙模糊，伴糖代谢异常增高，最大SUV值约为10.1。肝脏内见多发囊性低密度灶，较大者大小约为19.3MM×14.2MM。脾脏略大，未见明显糖代谢增高。胃壁均匀性轻度糖代谢生理性增强；胆囊、胰、两肾下腺、肾、输尿管及大血管处未见明显糖代谢异常增高。腹膜后无明显肿大淋巴结；腹腔无积液。盆部PET图像示膀胱内大量显像剂生理性积聚；肠道呈线型生理性糖代谢增强；生殖器及两侧腹股沟处未见明显异常糖代谢增强。CT平扫示膀胱充盈，壁光滑无增厚；子宫和两附件区未见明显占位；盆腔和两侧腹股沟无肿大淋巴结；盆腔无积液。骨骼PET图像未见异常糖代谢增强。CT定位片见颈胸腰骶椎顺列，生理曲度存在；平扫骨窗示颈、胸、腰、骶椎体及椎小关节骨质未见异常。两侧骶髂关节面上见骨质密度增高影，考虑为良性改变。</t>
   </si>
   <si>
     <t>结肠脾区</t>
@@ -5966,7 +5966,7 @@
     <t>右下肺叶切除术后改变，支气管残端未见软组织影。右肺上叶少许渗出性病变。左肺下叶后段少许斑片灶，较前无明显强化，考虑慢性炎性病变。左肺中叶小斑片灶，较前相仿，考虑增殖性病灶。右侧胸腔少量积液，右下胸纵隔旁少量包裹性积液、积气。甲状腺两叶结节，考虑结节性甲状腺肿可能性大。右侧腋上片絮灶，考虑术后改变可能性大。肝S6稍低密度灶，血管瘤？建议复查。肝内多发囊肿。右下肺叶切除术后，对比前片（2016-12-5）：右下肺叶缺如，右下肺支气管截断呈术后改变，支气管残端未见明确软组织影及异常强化灶。右上肺叶膨胀尚可，内见多发纤维条索条片灶。左肺下叶后段见少许斑片灶，边界欠清楚，左肺中叶见小斑片灶，大小约4MM×7MM，形态欠规则，邻近胸膜受牵拉，较前变化不大。气管及余支气管分支通畅。两侧锁骨下区、两肺门及纵隔、两侧腋窝未见明显肿大淋巴结。右侧胸腔见少量游离性积液，右下胸腔纵隔旁局部见包裹性积液，内见少许积气。左侧胸腔未见积液。两侧胸膜轻度增厚、粘连。心包未见积液。食管全段未见明显增厚。扫描范围内甲状腺两叶见多个类结节灶，边界尚清楚，不均匀强化。右侧腋上皮上脂肪间隙见片絮状密度增高影，边缘模糊，内见斑点状致密灶，右侧前锯肌肿胀，边界模糊，与病变分界不清。肝脏形态、各叶比例在正常范围以内，其外形轮廓光整，肝S4、6几个低密度灶，大者约33MM×27MM，内无强化；肝S6见一小低密度灶，直径约7MM，增强扫描动脉期强化不明显，门脉期及延迟期强化范围似有扩大。肝内胆管未见扩张，胆囊不大，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区未见异常。门静脉及肝静脉未见异常。脾未见增大，密度均匀。胰腺大小、形态未见异常，密度均匀。两肾及两肾下腺大小、形态未见异常，密度均匀。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。扫描所见骨质未见破坏征象。</t>
   </si>
   <si>
-    <t>右肺下叶团块状病灶，考虑肺癌，病灶后缘片状模糊灶，考虑炎症可能性大，建议复查。两肺散在小结节灶，转移瘤？建议复查。两侧肋胸膜及叶间胸膜小结节，转移？建议复查。右肺门及主肺动脉窗淋巴结肿大，考虑转移；右侧锁骨下、左下气管旁、两侧上气管旁及左肺门淋巴结，性质待定，建议复查。右侧第11肋溶骨性骨质破坏，考虑转移可能性大。肝内弥漫分布低密度灶，囊肿？部分边界不清楚，转移瘤待排，建议复查。右肾囊肿。甲状腺右叶结节，恶性？建议B超检查。两肺纹理增粗，右肺下叶见团块状病灶，形态不规则，边缘毛糙，见多发短毛刺，病灶大小约32MM×46MM，中心见片状低密度坏死，增强后明显不均匀强化，病灶后缘见片状稍高密度灶，边缘模糊，范围约12MM×18MM。两肺下叶及左肺上叶近见散在类结节灶，大小约2~3MM。气管及支气管分支通畅。右肺门及主肺动脉窗见多个淋巴结，部分相互融合，最大者位于主肺动脉窗，大小约25MM×30MM，不均匀强化，右侧锁骨下、左侧下、两上气管旁、隆突上及左肺门见都佛小淋巴结，短径约3~6MM。两侧叶间胸膜及肋胸膜见多发结节灶，大小约2~3MM。两侧胸腔未见积液。甲状腺右叶见结节状稍低密度灶，大小约13MM×14MM，轻度强化。右侧第11肋腋段见溶骨性骨质破坏，骨皮质欠完整。肝脏形态欠规则，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝内见弥漫分布低密度灶，大部分边界尚清楚，部分边界欠清楚，大小约3~10MM，未见明显强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。右肾见低密度灶，大小约36MM×37MM，未见强化，左肾所见正常。两肾下腺所见正常。膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。</t>
+    <t>右肺下叶团块状病灶，考虑肺癌，病灶后缘片状模糊灶，考虑炎症可能性大，建议复查。两肺散在小结节灶，转移瘤？建议复查。_x0004_两侧肋胸膜及叶间胸膜小结节，转移？建议复查。_x0004_右肺门及主肺动脉窗淋巴结肿大，考虑转移；右侧锁骨下、左下气管旁、两侧上气管旁及左肺门淋巴结，性质待定，建议复查。_x0004_右侧第11肋溶骨性骨质破坏，考虑转移可能性大。_x0004_肝内弥漫分布低密度灶，囊肿？部分边界不清楚，转移瘤待排，建议复查。右肾囊肿。甲状腺右叶结节，恶性？建议B超检查。两肺纹理增粗，右肺下叶见团块状病灶，形态不规则，边缘毛糙，见多发短毛刺，病灶大小约32MM×46MM，中心见片状低密度坏死，增强后明显不均匀强化，病灶后缘见片状稍高密度灶，边缘模糊，范围约12MM×18MM。两肺下叶及左肺上叶近见散在类结节灶，大小约2~3MM。气管及支气管分支通畅。_x0004_右肺门及主肺动脉窗见多个淋巴结，部分相互融合，最大者位于主肺动脉窗，大小约25MM×30MM，不均匀强化，右侧锁骨下、左侧下、两上气管旁、隆突上及左肺门见都佛小淋巴结，短径约3~6MM。两侧叶间胸膜及肋胸膜见多发结节灶，大小约2~3MM。两侧胸腔未见积液。甲状腺右叶见结节状稍低密度灶，大小约13MM×14MM，轻度强化。_x0004_右侧第11肋腋段见溶骨性骨质破坏，骨皮质欠完整。_x0004_肝脏形态欠规则，各叶比例在正常范围以内，其外形轮廓光整，密度不均匀，肝内见弥漫分布低密度灶，大部分边界尚清楚，部分边界欠清楚，大小约3~10MM，未见明显强化。肝内胆管正常，其内未见结石影，胆囊大小正常，其内未见结石影，胆总管未见扩张，其内未见结石影。肝门区正常。门静脉所见正常。_x0004_脾大小正常，密度均匀。胰腺大小、形态正常，密度均匀。_x0004_右肾见低密度灶，大小约36MM×37MM，未见强化，左肾所见正常。两肾下腺所见正常。_x0004_膈脚后、胃右、腹腔干、腹主动脉旁未见肿大淋巴结。_x0004_</t>
   </si>
   <si>
     <t>32MM×46MM</t>
@@ -5975,7 +5975,7 @@
     <t>两肺散在小结节灶,两侧肋胸膜及叶间胸膜小结节,右肺门及主肺动脉窗淋巴结,右侧第11肋,肝内弥漫分布低密度灶,甲状腺右叶结节</t>
   </si>
   <si>
-    <t>None肺癌化疗后复查，对比2017-12-22CT片：右肺门区见软组织影，包绕局部支气管及血管，分界欠清，大小约35MM×19MM，强化不均，较前相仿。右上肺体积缩小，呈节段性不张，范围较前相仿。左肺下叶前段见条片影，边界模糊，与胸膜粘连，考虑炎症，较前相仿。两侧轻度肺气肿，左肺多发肺大泡，较前相仿。纵隔、右肺门见多发淋巴结，界清，较大者短径11MM，轻度强化，较前相仿。右侧胸腔大量积液，部分包裹；左侧少量胸腔积液，较前相仿。右后肋胸膜、纵隔胸膜不均匀明显增厚，部分呈结节状，大者约33MM×15MM，强化不均，考虑转移，较前有所增厚。肝内多发囊肿，界清，较大者位于S5，直径35MM，未见强化。肝内外胆管、胆总管无扩张，胆囊稍大，壁稍厚，胆囊窝见积液，考虑胆囊炎。右肾下腺呈结节状增厚，最厚约10MM，密度均匀，较前相仿。两肾囊肿，大者直径13MM，界清，无强化。右肾见一脂肪密度结节，界清，约7MM×9MM×16MM，未见强化，邻近肾周筋膜见少许条索影，未见强化，多考虑错构瘤，较前相仿。脾脏、胰腺、左侧肾下腺未见明显异常。腹腔及腹膜后未见肿大淋巴结。T6、T11、L1、L3椎体及附件、左侧股骨下段髓腔前缘见致密影，界清，较前增多，考虑骨转移。左侧第3前肋、右侧第8肋骨腋段骨质密度不均，较前相仿。</t>
+    <t>None肺癌化疗后复查，对比2017-12-22CT片：_x0004_右肺门区见软组织影，包绕局部支气管及血管，分界欠清，大小约35MM×19MM，强化不均，较前相仿。_x0004_右上肺体积缩小，呈节段性不张，范围较前相仿。_x0004_左肺下叶前段见条片影，边界模糊，与胸膜粘连，考虑炎症，较前相仿。_x0004_两侧轻度肺气肿，左肺多发肺大泡，较前相仿。_x0004_纵隔、右肺门见多发淋巴结，界清，较大者短径11MM，轻度强化，较前相仿。_x0004_右侧胸腔大量积液，部分包裹；左侧少量胸腔积液，较前相仿。_x0004_右后肋胸膜、纵隔胸膜不均匀明显增厚，部分呈结节状，大者约33MM×15MM，强化不均，考虑转移，较前有所增厚。_x0004_肝内多发囊肿，界清，较大者位于S5，直径35MM，未见强化。_x0004_肝内外胆管、胆总管无扩张，胆囊稍大，壁稍厚，胆囊窝见积液，考虑胆囊炎。_x0004_右肾下腺呈结节状增厚，最厚约10MM，密度均匀，较前相仿。_x0004_两肾囊肿，大者直径13MM，界清，无强化。_x0004_右肾见一脂肪密度结节，界清，约7MM×9MM×16MM，未见强化，邻近肾周筋膜见少许条索影，未见强化，多考虑错构瘤，较前相仿。_x0004_脾脏、胰腺、左侧肾下腺未见明显异常。_x0004_腹腔及腹膜后未见肿大淋巴结。_x0004_T6、T11、L1、L3椎体及附件、左侧股骨下段髓腔前缘见致密影，界清，较前增多，考虑骨转移。_x0004_左侧第3前肋、右侧第8肋骨腋段骨质密度不均，较前相仿。</t>
   </si>
   <si>
     <t>右肺门区</t>
@@ -5987,13 +5987,13 @@
     <t>右后肋胸膜,纵隔胸膜,T6,T11,L1,L3椎体及附件,左侧股骨下段,骨</t>
   </si>
   <si>
-    <t>主动脉瓣钙化(心脏彩色多普勒超声+右心功能测定+TDI)，常规检查切面观，：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、M型及血流多普勒超声测量：，名称，测量值，正常值，主动脉根部内径，32，20-37MM，右房内径，35，19-40MM，右室舒张末内径，44，35-56MM，右室收缩末内径，27，23-35MM，室间隔厚度，9，6-11MM，右室后壁厚度，9，6-11MM，肺动脉收缩压，30，&amp;lt；40MMHg，医学图像序列2行2列，宽：110，二、右心功能测定及组织多普勒显像测量：，右室射血分数（LVEF）：，69，%，二尖瓣血流图：，E、A两峰，，E/A，&amp;lt；，1；DT：，180，ms，DTI示S波峰值：，9，cm/s；E/A，&amp;lt；，1，三、普通二维超声心动图和各心腔及大血管血流显像：，1、右房内径，正常，，右室内径，正常，，右室壁厚度，正常，，静息状态上右室各节段收缩活动未见异常。，2、二尖瓣，不增厚，，开放不受限，彩色多普勒，未测及，二尖瓣反流。，3、主动脉窦部，不增宽，，升主动脉，不增宽，，主动脉瓣，钙化，，，开放不受限，，彩色多普勒，示轻微，主动脉瓣反流。，4、左房内径，正常，，左室内径，正常，，左室收缩活动未见异常。肺动脉，不增宽，，三尖瓣不增厚，开放不受限，彩色多普勒，示轻微，三尖瓣反流。，5、心包腔内，未见明显积液，。，四、结论：，</t>
-  </si>
-  <si>
-    <t>静息状态上超声心动图未见异常常规检查切面观，：，胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：，中，一、普通心脏M型超声检查（单位：mm）：，名称，测量值，正常值，主动脉根部内径，32，20-37，右房内径，32，19-40，右室舒张末内径，46，35-56，右室收缩末内径，29，23-35，室间隔厚度，8，6-11，右室后壁厚度，8，6-11，二、二维超声心动图和彩色多普勒超声心动图检查：，1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。，2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。，3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。，4、左房室不大，肺动脉不增宽，肺动脉血流图未见异常。，三、，右心功能测定：，LVEF：67%；，二尖瓣血流图示E/A，&amp;gt；，1；DT：173MMs，四、组织多普勒测定：，DTI示S波峰值：8.9CM/s；E'/A'，&amp;gt；，1，五、结论：，</t>
-  </si>
-  <si>
-    <t>右上肺癌并转移免疫治疗后复查：右肺上叶肿物，范围较前相仿；周围阻塞炎症，较前相仿。左肺下叶小结节灶，增殖灶可能性大，较前相仿。右肺下叶舌段、左肺中叶斑片灶，考虑炎症，较前吸收减少。右胸腔少量积液，较前稍减少。纵隔隆突上、右肺门淋巴结肿大，考虑转移，部分较前稍增大。纵隔、两腋窝小淋巴结，考虑反应性淋巴结，较前相仿。肝多发小囊肿。左肾小囊肿。前列腺钙化。多个胸腰椎椎体致密灶，考虑许莫氏结节，较前相仿。右上肺癌并转移免疫治疗后复查，对比2017-03-18片：右肺上叶外后基底段见一软组织肿块，边缘不光整，大小约为80MM×61MM，呈分叶状，边缘见毛刺，平扫密度不均匀，未见空洞及钙化灶，增强扫描不均匀明显强化，侵犯邻近胸膜，较前相仿。病灶周围见斑片状灶，边界不清楚，范围较前相仿。左肺下叶尖段见小结节，边界清，直径约2MM，较前未见明显变化。右肺下叶舌段、左肺中叶见少许斑片状密度增高灶，边缘模糊，较前吸收减少。右肺上叶段支气管变窄，气管及左侧支气管分支通畅。气管隆突上及右肺门见多个淋巴结，密度不均，较大者短径约22MM，不均匀强化，部分较前稍增大。两上气管旁、主肺动脉窗、主动脉弓旁及两腋窝见多个小淋巴结，边界清，较大者短径约7MM，较前未见明显变化。右侧胸腔见少量液性密度灶，较前稍减少，左侧胸腔未见积液，左侧胸膜未见增厚。肝脏形态正常，轮廓光整，肝内见多个小类圆形低密度灶，直径约5MM，未见强化。肝内胆管未见异常，其内未见结石。胆囊大小、形态正常，胆总管未见扩张，其内未见结石。肝门区未见异常。门静脉所见未见异常。脾、胰腺大小、形态未见异常，密度均匀。左肾见一类圆形低密度灶，边界清，直径约4MM，未见强化。两侧肾下腺及右肾未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。膀胱充盈良好，境界清楚。精囊大小、形态未见异常，密度均匀，膀胱精囊角存在。前列腺大小、形态未见异常，见斑点状致密灶。腹主动脉旁、两侧髂血管旁、腹股沟未见肿大淋巴结。多个胸腰椎椎体见半环形致密影，边界清，边缘硬化，较前相仿。</t>
+    <t>主动脉瓣钙化(心脏彩色多普勒超声+右心功能测定+TDI),常规检查切面观,：胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、M型及血流多普勒超声测量：,名称,测量值,正常值,主动脉根部内径,32,20-37MM,右房内径,35,19-40MM,右室舒张末内径,44,35-56MM,右室收缩末内径,27,23-35MM,室间隔厚度,9,6-11MM,右室后壁厚度,9,6-11MM,肺动脉收缩压,30,&amp;lt;40MMHg,医学图像序列2行2列,宽：110,二、右心功能测定及组织多普勒显像测量:,右室射血分数（LVEF）：,69,%,二尖瓣血流图：,E、A两峰,，E/A,&amp;lt;,1；DT：,180,ms,DTI示S波峰值：,9,cm/s；E/A,&amp;lt;,1,三、普通二维超声心动图和各心腔及大血管血流显像：,1、右房内径,正常,，右室内径,正常,，右室壁厚度,正常,，静息状态上右室各节段收缩活动未见异常。,2、二尖瓣,不增厚,，开放不受限，彩色多普勒,未测及,二尖瓣反流。,3、主动脉窦部,不增宽,，升主动脉,不增宽,，主动脉瓣,钙化,，,开放不受限,，彩色多普勒,示轻微,主动脉瓣反流。,4、左房内径,正常,，左室内径,正常,，左室收缩活动未见异常。肺动脉,不增宽,，三尖瓣不增厚，开放不受限，彩色多普勒,示轻微,三尖瓣反流。,5、心包腔内,未见明显积液,。,四、结论：,</t>
+  </si>
+  <si>
+    <t>静息状态上超声心动图未见异常常规检查切面观,：,胸骨旁长轴观（√）；胸骨旁短轴观：主动脉根部（√）二尖瓣水平（√）乳头肌水平（√）心尖水平（√）；心尖位：四腔观（√）五腔观（√）二腔观（√）长轴观（√）透声条件：,中,一、普通心脏M型超声检查（单位：mm）：,名称,测量值,正常值,主动脉根部内径,32,20-37,右房内径,32,19-40,右室舒张末内径,46,35-56,右室收缩末内径,29,23-35,室间隔厚度,8,6-11,右室后壁厚度,8,6-11,二、二维超声心动图和彩色多普勒超声心动图检查：,1、右房室内径正常，右室壁不增厚，静息状态上各节段收缩活动未见异常。,2、二尖瓣不增厚，开放不受限，彩色多普勒测及轻微二尖瓣反流。,3、主动脉不增宽，主动脉瓣不增厚，开放不受限，彩色多普勒未测及主动脉瓣反流。,4、左房室不大，肺动脉不增宽，肺动脉血流图未见异常。,三、,右心功能测定：,LVEF：67%;,二尖瓣血流图示E/A,&amp;gt;,1;DT:173MMs,四、组织多普勒测定：,DTI示S波峰值:8.9CM/s;E'/A',&amp;gt;,1,五、结论：,</t>
+  </si>
+  <si>
+    <t>右上肺癌并转移免疫治疗后复查：_x0004_右肺上叶肿物，范围较前相仿；周围阻塞炎症，较前相仿。_x0004_左肺下叶小结节灶，增殖灶可能性大，较前相仿。_x0004_右肺下叶舌段、左肺中叶斑片灶，考虑炎症，较前吸收减少。_x0004_右胸腔少量积液，较前稍减少。_x0004_纵隔隆突上、右肺门淋巴结肿大，考虑转移，部分较前稍增大。_x0004_纵隔、两腋窝小淋巴结，考虑反应性淋巴结，较前相仿。_x0004_肝多发小囊肿。左肾小囊肿。前列腺钙化。_x0004_多个胸腰椎椎体致密灶，考虑许莫氏结节，较前相仿。右上肺癌并转移免疫治疗后复查，对比2017-03-18片：_x0004_右肺上叶外后基底段见一软组织肿块，边缘不光整，大小约为80MM×61MM，呈分叶状，边缘见毛刺，平扫密度不均匀，未见空洞及钙化灶，增强扫描不均匀明显强化，侵犯邻近胸膜，较前相仿。病灶周围见斑片状灶，边界不清楚，范围较前相仿。左肺下叶尖段见小结节，边界清，直径约2MM，较前未见明显变化。右肺下叶舌段、左肺中叶见少许斑片状密度增高灶，边缘模糊，较前吸收减少。_x0004_右肺上叶段支气管变窄，气管及左侧支气管分支通畅。气管隆突上及右肺门见多个淋巴结，密度不均，较大者短径约22MM，不均匀强化，部分较前稍增大。两上气管旁、主肺动脉窗、主动脉弓旁及两腋窝见多个小淋巴结，边界清，较大者短径约7MM，较前未见明显变化。右侧胸腔见少量液性密度灶，较前稍减少，左侧胸腔未见积液，左侧胸膜未见增厚。_x0004_肝脏形态正常，轮廓光整，肝内见多个小类圆形低密度灶，直径约5MM，未见强化。肝内胆管未见异常，其内未见结石。胆囊大小、形态正常，胆总管未见扩张，其内未见结石。肝门区未见异常。门静脉所见未见异常。脾、胰腺大小、形态未见异常，密度均匀。左肾见一类圆形低密度灶，边界清，直径约4MM，未见强化。两侧肾下腺及右肾未见异常。膈脚后、腹主动脉旁未见肿大淋巴结。_x0004_膀胱充盈良好，境界清楚。精囊大小、形态未见异常，密度均匀，膀胱精囊角存在。前列腺大小、形态未见异常，见斑点状致密灶。腹主动脉旁、两侧髂血管旁、腹股沟未见肿大淋巴结。_x0004_多个胸腰椎椎体见半环形致密影，边界清，边缘硬化，较前相仿。</t>
   </si>
   <si>
     <t>右肺上叶外后基底段</t>
@@ -6002,10 +6002,10 @@
     <t>80MM×61MM</t>
   </si>
   <si>
-    <t>直肠癌放化疗后：未排局部残留；降结肠息肉。内镜上所见：（直肠癌放化疗后）肠道准备欠佳，肠腔内见较多粪水，稍影响观察，可顺利进镜至回盲部。距肛门约3-6CM直肠前壁见黏膜凹凸不平，局部可见疤痕，表面充血，质硬，活检4块。距肛门40CM降结肠见一广基息肉，大小约6MM×7MM，活检1块，质软。其余所见回盲部、各段结肠未见糜烂、溃疡及肿物。超声内镜上所见：距肛门约3-6CM直肠前壁见肠壁正常结构回声消失，呈不均质低回声改变，厚度约6.1MM，外膜层尚光整连续，与前列腺及精囊腺分界清。直肠旁未见肿大淋巴结低回声。请4个工作日后到病理科（2号楼6楼）取活检结果。</t>
-  </si>
-  <si>
-    <t>左肺门区、左主支气管周围软组织，较前稍缩小。左肺中上叶及右下肺纵隔旁大片密度增高影，考虑放射性炎症及纤维化。左肺中叶条片影，考虑节段性肺不张。两肺上叶斑片影，考虑炎症性病变，较前稍加重。纵隔小淋巴结，较前缩小。左下纵隔囊性灶，范围较前稍增大。两侧肺气肿，大致同前。两侧胸膜稍增厚，左侧较前增厚。心包中量积液。两肾小囊肿。左下肺癌术后放化疗后，同2016-7-15CT对比：左下肺术后缺如，左肺门区、左主支气管周围软组织增厚，内见金属缝合钉影，左主支气管后壁不光滑，左主支气管管腔变窄，病灶较前稍缩小。左肺中叶膨胀不良，左肺中上叶及右肺下叶纵隔旁见大片状、网格状及条索状密度增高影，部分见支气管充气征，边界与软组织影分界不清。左肺中叶条片影，较前增大。左肺上叶外基底段及右肺上叶基底段可见斑片状密度增高影，边界欠清。两肺纹理较粗乱，两肺呈过度充气状。气管、左中、上叶及右肺各叶支气管分枝通畅。左下、上气管旁、主肺动脉窗、隆突上可见数个肿大淋巴结，较大短径约9MM，边界欠清，增强可见明显强化，较前缩小。纵隔内左下上气管旁见一不规则囊肿影，较前范围稍增大；两侧胸膜稍增厚，左侧较前增厚。两侧胸腔未见积液，心包中量积液。肝脏形态正常，比例正常，外形轮廓光整，密度均匀，快速注射造影剂后，动脉期未见明确异常强化灶，门脉期及平衡期未见明确低密度区；肝内胆管未见扩张，胆囊大小正常，内未见结石影，胆总管未见扩张；肝门区未见肿大淋巴结；门静脉未见充盈缺损；脾大小正常，密度均匀；胰腺大小、形态正常，密度均匀；两肾可见数个类圆形囊性低密度灶，较大直径约5MM，界清，增强无强化；两侧肾下腺大小、形态、密度正常；膈脚后、腹主动脉旁未见肿大淋巴结。扫描范围内胸椎、腰椎、肋骨未见明确骨质破坏征象。</t>
+    <t>直肠癌放化疗后：未排局部残留；_x0004__x0004_降结肠息肉。内镜上所见：（直肠癌放化疗后）_x0004__x0004_肠道准备欠佳，肠腔内见较多粪水，稍影响观察，可顺利进镜至回盲部。_x0004__x0004_距肛门约3-6CM直肠前壁见黏膜凹凸不平，局部可见疤痕，表面充血，质硬，活检4块。距肛门40CM降结肠见一广基息肉，大小约6MM×7MM，活检1块，质软。其余所见回盲部、各段结肠未见糜烂、溃疡及肿物。_x0004__x0004_超声内镜上所见：_x0004__x0004_距肛门约3-6CM直肠前壁见肠壁正常结构回声消失，呈不均质低回声改变，厚度约6.1MM，外膜层尚光整连续，与前列腺及精囊腺分界清。_x0004__x0004_直肠旁未见肿大淋巴结低回声。_x0004__x0004_请4个工作日后到病理科（2号楼6楼）取活检结果。</t>
+  </si>
+  <si>
+    <t>左肺门区、左主支气管周围软组织，较前稍缩小。_x0004_左肺中上叶及右下肺纵隔旁大片密度增高影，考虑放射性炎症及纤维化。_x0004_左肺中叶条片影，考虑节段性肺不张。_x0004_两肺上叶斑片影，考虑炎症性病变，较前稍加重。_x0004_纵隔小淋巴结，较前缩小。_x0004_左下纵隔囊性灶，范围较前稍增大。_x0004_两侧肺气肿，大致同前。两侧胸膜稍增厚，左侧较前增厚。_x0004_心包中量积液。两肾小囊肿。左下肺癌术后放化疗后，同2016-7-15CT对比：_x0004_左下肺术后缺如，左肺门区、左主支气管周围软组织增厚，内见金属缝合钉影，左主支气管后壁不光滑，左主支气管管腔变窄，病灶较前稍缩小。左肺中叶膨胀不良，左肺中上叶及右肺下叶纵隔旁见大片状、网格状及条索状密度增高影，部分见支气管充气征，边界与软组织影分界不清。左肺中叶条片影，较前增大。左肺上叶外基底段及右肺上叶基底段可见斑片状密度增高影，边界欠清。两肺纹理较粗乱，两肺呈过度充气状。气管、左中、上叶及右肺各叶支气管分枝通畅。_x0004_左下、上气管旁、主肺动脉窗、隆突上可见数个肿大淋巴结，较大短径约9MM，边界欠清，增强可见明显强化，较前缩小。_x0004_纵隔内左下上气管旁见一不规则囊肿影，较前范围稍增大；两侧胸膜稍增厚，左侧较前增厚。两侧胸腔未见积液，心包中量积液。_x0004_肝脏形态正常，比例正常，外形轮廓光整，密度均匀，快速注射造影剂后，动脉期未见明确异常强化灶，门脉期及平衡期未见明确低密度区；肝内胆管未见扩张，胆囊大小正常，内未见结石影，胆总管未见扩张；肝门区未见肿大淋巴结；门静脉未见充盈缺损；脾大小正常，密度均匀；胰腺大小、形态正常，密度均匀；两肾可见数个类圆形囊性低密度灶，较大直径约5MM，界清，增强无强化；两侧肾下腺大小、形态、密度正常；膈脚后、腹主动脉旁未见肿大淋巴结。_x0004_扫描范围内胸椎、腰椎、肋骨未见明确骨质破坏征象。</t>
   </si>
 </sst>
 </file>
